--- a/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
+++ b/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\Project\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8D7BC-9C7D-470B-BD7A-39B8CFF32DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C576969-6F83-409F-892C-26753CCDEF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resultados!$M$3:$N$3</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">Resultados!$I$3:$J$3</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Resultados!$I$4:$J$8</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Resultados!$K$3</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Resultados!$K$4:$K$8</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Dashboard!$O$12</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Dashboard!$O$13</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Dashboard!$O$12</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Dashboard!$O$13</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">Dashboard!$O$12</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Dashboard!$O$13</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Resultados!$K$4:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>mês</t>
   </si>
@@ -59,9 +57,6 @@
   </si>
   <si>
     <t>receita (k, R$)</t>
-  </si>
-  <si>
-    <t>conversão (%)</t>
   </si>
   <si>
     <t>ticket médio (k, R$)</t>
@@ -102,14 +97,21 @@
   <si>
     <t>5 - Dias da semana com maior número de visitas ao site</t>
   </si>
+  <si>
+    <t>Vendas (#)</t>
+  </si>
+  <si>
+    <t>Conversão (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -168,16 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +184,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,6 +406,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -396,6 +451,42 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6353</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -429,7 +520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>conversão (%)</c:v>
+                  <c:v>Conversão (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,6 +606,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -524,6 +651,42 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.19230769230769201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7593984962405999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6454018227009097E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2738095238095198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0245746691871401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2307692307692298E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.15942028985507E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.97643097643097E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.103168368682901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.132657657657657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17504078303425699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19738706123091401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -547,7 +710,7 @@
         <c:axId val="1886420143"/>
         <c:axId val="1886418895"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1305806031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -594,10 +757,9 @@
         <c:crossAx val="1305802703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1305802703"/>
         <c:scaling>
@@ -696,7 +858,7 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1886420143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -710,10 +872,9 @@
         <c:crossAx val="1886418895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -972,6 +1133,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -979,8 +1176,44 @@
             <c:numRef>
               <c:f>Resultados!$E$4:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1676.45685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2278.5075000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.7686899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2297.2240499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3631.0958999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7911.1924799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7477.5559199999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21508.476480000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33179.246639999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58987.786489999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68274.090230000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1100,6 +1333,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1107,8 +1376,44 @@
             <c:numRef>
               <c:f>Resultados!$G$4:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>51.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.898767142857103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.784261363636297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.871778484848406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.788251562499994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.398469117646997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.480609075630198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.658844507042197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.590041827411099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.331488353140898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.974637921714802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.445048030302999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1132,7 +1437,7 @@
         <c:axId val="1886420143"/>
         <c:axId val="1886418895"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1305806031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1179,10 +1484,9 @@
         <c:crossAx val="1305802703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1305802703"/>
         <c:scaling>
@@ -1204,7 +1508,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1246,7 +1550,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1281,7 +1585,7 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1886420143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1295,10 +1599,9 @@
         <c:crossAx val="1886418895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2331,12 +2634,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.1</cx:f>
-        <cx:nf>_xlchart.v5.0</cx:nf>
+        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:nf>_xlchart.v5.2</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.3</cx:f>
-        <cx:nf>_xlchart.v5.2</cx:nf>
+        <cx:f>_xlchart.v5.5</cx:f>
+        <cx:nf>_xlchart.v5.4</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2374,7 +2677,7 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.2</cx:f>
+              <cx:f>_xlchart.v5.4</cx:f>
               <cx:v>vendas (#)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2409,8 +2712,8 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.7</cx:f>
-        <cx:nf>_xlchart.v5.6</cx:nf>
+        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:nf>_xlchart.v5.0</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6535,8 +6838,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12579803" y="206829"/>
-              <a:ext cx="4572000" cy="4991100"/>
+              <a:off x="12558032" y="206829"/>
+              <a:ext cx="4561114" cy="4991100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7337,11 +7640,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21" style="5" customWidth="1"/>
     <col min="3" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="11" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
@@ -7367,13 +7670,17 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" customWidth="1"/>
@@ -7384,79 +7691,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="9">
+        <v>44075</v>
+      </c>
+      <c r="C4" s="11">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>259.29000000000002</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.19230769230769201</v>
+      </c>
+      <c r="G4" s="14">
+        <v>51.857999999999997</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7469,12 +7788,24 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="9">
+        <v>44105</v>
+      </c>
+      <c r="C5" s="11">
+        <v>931</v>
+      </c>
+      <c r="D5" s="11">
+        <v>35</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1676.45685</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3.7593984962405999E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>47.898767142857103</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -7487,12 +7818,24 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="9">
+        <v>44136</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1207</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2278.5075000000002</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3.6454018227009097E-2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>51.784261363636297</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7505,12 +7848,24 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="9">
+        <v>44166</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="11">
+        <v>33</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2602.7686899999999</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3.2738095238095198E-2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>78.871778484848406</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7523,12 +7878,24 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="9">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1058</v>
+      </c>
+      <c r="D8" s="11">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2297.2240499999998</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3.0245746691871401E-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>71.788251562499994</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -7541,129 +7908,213 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="9">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1300</v>
+      </c>
+      <c r="D9" s="11">
+        <v>68</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3631.0958999999998</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5.2307692307692298E-2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>53.398469117646997</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="9">
+        <v>44256</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1932</v>
+      </c>
+      <c r="D10" s="11">
+        <v>119</v>
+      </c>
+      <c r="E10" s="15">
+        <v>7911.1924799999997</v>
+      </c>
+      <c r="F10" s="12">
+        <v>6.15942028985507E-2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>66.480609075630198</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2376</v>
+      </c>
+      <c r="D11" s="11">
+        <v>142</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7477.5559199999998</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5.97643097643097E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>52.658844507042197</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="9">
+        <v>44317</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3819</v>
+      </c>
+      <c r="D12" s="11">
+        <v>394</v>
+      </c>
+      <c r="E12" s="15">
+        <v>21508.476480000001</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.103168368682901</v>
+      </c>
+      <c r="G12" s="14">
+        <v>54.590041827411099</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="9">
+        <v>44348</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4440</v>
+      </c>
+      <c r="D13" s="11">
+        <v>589</v>
+      </c>
+      <c r="E13" s="15">
+        <v>33179.246639999998</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.132657657657657</v>
+      </c>
+      <c r="G13" s="14">
+        <v>56.331488353140898</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="9">
+        <v>44378</v>
+      </c>
+      <c r="C14" s="11">
+        <v>6130</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1073</v>
+      </c>
+      <c r="E14" s="15">
+        <v>58987.786489999999</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.17504078303425699</v>
+      </c>
+      <c r="G14" s="14">
+        <v>54.974637921714802</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C15" s="11">
+        <v>6353</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1254</v>
+      </c>
+      <c r="E15" s="15">
+        <v>68274.090230000002</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.19738706123091401</v>
+      </c>
+      <c r="G15" s="14">
+        <v>54.445048030302999</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>44075</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <f>EDATE(C29,1)</f>
         <v>44105</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <f t="shared" ref="E29:L29" si="0">EDATE(D29,1)</f>
         <v>44136</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="6">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="6">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="6">
         <f t="shared" ref="M29:N29" si="1">EDATE(L29,1)</f>
         <v>44378</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="6">
         <f t="shared" si="1"/>
         <v>44409</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
+++ b/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\Project\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C576969-6F83-409F-892C-26753CCDEF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CDAFF-A0DC-4873-B824-771CFF79F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="Resultados" sheetId="3" r:id="rId2"/>
-    <sheet name="Queries" sheetId="4" r:id="rId3"/>
+    <sheet name="RECEITA" sheetId="5" r:id="rId1"/>
+    <sheet name="MAPA BRAZIL" sheetId="6" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
+    <sheet name="Resultados" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resultados!$M$3:$N$3</definedName>
-    <definedName name="_xlchart.v5.0" hidden="1">Dashboard!$O$12</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Dashboard!$O$13</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Resultados!$I$3:$J$3</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Resultados!$I$4:$J$8</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Resultados!$K$3</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resultados!$M$3:$N$3</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Resultados!$K$4:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>mês</t>
   </si>
@@ -63,9 +67,6 @@
   </si>
   <si>
     <t>estado</t>
-  </si>
-  <si>
-    <t>país</t>
   </si>
   <si>
     <t>marca</t>
@@ -103,15 +104,54 @@
   <si>
     <t>Conversão (%)</t>
   </si>
+  <si>
+    <t>BrazIL</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>numero_vendas</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -170,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,7 +242,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -234,6 +283,804 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="0"/>
+              <a:t>Receita</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8964838790962708E-2"/>
+          <c:y val="0.19366649151933321"/>
+          <c:w val="0.86520753223694313"/>
+          <c:h val="0.63886141076654501"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>receita (k, R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="176C83"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1676.45685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2278.5075000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.7686899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2297.2240499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3631.0958999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7911.1924799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7477.5559199999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21508.476480000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33179.246639999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58987.786489999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68274.090230000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3699-445D-9FE2-0C09241EFDB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1305806031"/>
+        <c:axId val="1305802703"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ticket médio (k, R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFBE00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>51.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.898767142857103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.784261363636297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.871778484848406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.788251562499994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.398469117646997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.480609075630198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.658844507042197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.590041827411099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.331488353140898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.974637921714802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.445048030302999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3699-445D-9FE2-0C09241EFDB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1886420143"/>
+        <c:axId val="1886418895"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1305806031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305802703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1305802703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305806031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1886418895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886420143"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1886420143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1886418895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -960,734 +1807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="7"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" i="0"/>
-              <a:t>Receita</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.8964838790962708E-2"/>
-          <c:y val="0.19366649151933321"/>
-          <c:w val="0.86520753223694313"/>
-          <c:h val="0.63886141076654501"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>receita (k, R$)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="176C83"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Resultados!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$E$4:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>259.29000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1676.45685</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2278.5075000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2602.7686899999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2297.2240499999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3631.0958999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7911.1924799999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7477.5559199999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21508.476480000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33179.246639999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58987.786489999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68274.090230000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0057-4792-8753-862D5E3DF6D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="1305806031"/>
-        <c:axId val="1305802703"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultados!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ticket médio (k, R$)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFBE00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Resultados!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultados!$G$4:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>51.857999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.898767142857103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.784261363636297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.871778484848406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.788251562499994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.398469117646997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.480609075630198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52.658844507042197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.590041827411099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56.331488353140898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.974637921714802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54.445048030302999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0057-4792-8753-862D5E3DF6D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1886420143"/>
-        <c:axId val="1886418895"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1305806031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1305802703"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1305802703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1305806031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1886418895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1886420143"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="1886420143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1886418895"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1843,13 +1963,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$M$4:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>marca</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHEVROLET</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VOLKSWAGEN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FORD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1857,6 +1991,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2000,7 +2149,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2312,7 +2461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2629,17 +2778,2875 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="0"/>
+              <a:t>Receita</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8964838790962708E-2"/>
+          <c:y val="0.19366649151933321"/>
+          <c:w val="0.86520753223694313"/>
+          <c:h val="0.63886141076654501"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>receita (k, R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="176C83"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1676.45685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2278.5075000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.7686899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2297.2240499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3631.0958999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7911.1924799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7477.5559199999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21508.476480000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33179.246639999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58987.786489999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68274.090230000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE35-4C88-91B3-746ED06E9BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1305806031"/>
+        <c:axId val="1305802703"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ticket médio (k, R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFBE00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>51.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.898767142857103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.784261363636297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.871778484848406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.788251562499994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.398469117646997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.480609075630198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.658844507042197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.590041827411099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.331488353140898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.974637921714802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.445048030302999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE35-4C88-91B3-746ED06E9BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1886420143"/>
+        <c:axId val="1886418895"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1305806031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305802703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1305802703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305806031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1886418895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886420143"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1886420143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1886418895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:nf>_xlchart.v5.0</cx:nf>
+      </cx:strDim>
+      <cx:numDim type="colorVal">
         <cx:f>_xlchart.v5.3</cx:f>
         <cx:nf>_xlchart.v5.2</cx:nf>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="152400" dist="317500" dir="5400000" sx="90000" sy="-19000" rotWithShape="0">
+                <a:schemeClr val="accent4">
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v5.2</cx:f>
+              <cx:v>numero_vendas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:regionLabelLayout val="none"/>
+            <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
+              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
+                <cx:binary>3HzZctvKluWvOPzc8EnkgAQq6tZDAhxlavakF4Rsy5iHxAz8Tj33V9SP9YJ8z7kkxSuWbkc/dMkh
+iySGjdzD2mPy338M//YjfXqs3g1Zmtf/9mP42/uwacp/++OP+kf4lD3WH7LoR1XUxa/mw48i+6P4
+9Sv68fTHz+qxj/LgD0pM/seP8LFqnob3//HvuFvwVHwsfjw2UZHftE/VePtUt2lTv3Ls5KF3P4o2
+b+bLA9zpb+9V9ThtPr5/9/gzi3Ivqpsq+tGYf3t/d/3+3VPeRM14P5ZPf3t/cPz9uz+Ob/7iQd6l
+eNam/YlrDco+CMYcy7Ft8vxjvn+XFnnw53FufbCobVs2cX7/2H8Sv3zMcIO7//rP4t31Y5sWf35+
+6qGeH+nx58/qqa6xnue/h9ceLOL3Gk+wI0rfv4vqwv3NKLeYl6Bun9f8x6Eg/uPfjz4AF44+2ZPV
+McvOHfrvimq3eo0rbxSV6XxwTNvi0L/TomIfHCYsnMN+H2d/Ev8tql2UP9bvVk/VY1T/eeS/L6zD
+q4/ENa/zf4C47tzX+PJGcVH5QTiODXHhz/PPkWXZHwQ3bUrEaXHdPebN4zv3sXmsILjXHuyfWNfR
+9Ucim9f6P0Bkt3evceaNImPkA2GOoA5Abh8EhfmBmpbDcPC3ZdE/if62rNuoeLeqHvOfT+9+Fu/u
+WqDUPwfo09I6cYsjgc0r/Z8gsO1rzHmjwCj94JDZc5n0tI2xD6ZjSebQ33Ij7E/i/xAchLZ9zJ+i
+6l/wYLPU9q8/FhnW+v+ZyGYPu6+7B4//1uDCJB/Y8w+BwRwYFPvwWyLSOmlQc+jz+pOctqI/rzt4
+6t+R1P+70OGfhxV/RV4eUHzxHLLtRRavH/0zJDm69EA4B+r2p9w2P//2ngpKgGF/hYLzTf5+5W/F
+v36sHv/rf3//y63sXfT0WDcIDBn/IB2OUIJRSi1hUfH+Xf/0+5D9QVrcsWxbUiIJMyHdvKiaEJdZ
+Hwi1uSSASmZJSwo8Rl20z8fsD4xQRzicU5PZljSdv+Ln6yIdgyL/iyV/f/8ub7PrIsqb+m/vmU3e
+vyt/nzc/Lp6AculI26Ymoh7JBcfxH4+3CNJxuvm/En+SUZ7qVKU6rD6XZho/VGYb3PO296VyksZo
+NiaR/ueiJNbPIA3G+4zGMlKs9JuLoByKX7LMg+1UNmG9JLE0R5dzs0oUkbUMPd/3J67GcpKlSpiT
+pm43UFs1aZtc28bQci8snGFQsqyi70NeBInbt/kgFKmrIlw0vplNHhl9/S3Lq+BbbaWx43YypZlK
+6iFu3JT5rfbqoqh6z2dJetkXdJxU3kYZd3WV1KlXxsZYKruojcwlcWhO226Q+aekFG2nhGVrx+3Z
+JD7ZdRvXSiZEEMW6ltyyabRNlfIy/xglwRRejvBwiSeHiD6QYEr1mnGeExVyI70e06ivlrXv59Zi
+ogNda93nqWuQKC1VlVdtfmn3jb4jvmlPnsEH+sOxM+eLIUp9Z/glGzw/m5JWjY1ZXzbcrvgdIzaf
+VjojCVF1b/uDygybLQMjSayNZbbTNSVF/y2juqzUlGtrx5oienQ07bVixB87j3eQzLasC/6p6JMx
+8rRMskhZVVP3ntMlrb9iMksMt63toVMBy8G32CmzS9Lk0vKcwE+9IZ/IovDr0VR1avFvkWhDA+x2
+Mkf1iZNOriChEXqWGQyT6096MFQfRGapDJ6b9wWPplhJFlS51zesumlZZhOVTgPVbtAHrf25LIIg
+AzFa/CrzSofruDLM0HVyYn3lpmjaDQ367FuSNi1TaRU5m2E0h8DtptH/YhklbVVnmEmzYFlrV8rp
+xlCupDHWsWcHNIbapX7Su34uQq4Ko0hMN6oH/8sYBCJXXVwHzBVpaXySTR3d+FXJW3esIsO+Cuqh
+CFRViyly6yarpUsaM9WLMTH4qnX88iIfh8hYVCSJwKSpHgw3ljK5HW2uJ9cMRsu4GAvbCFRpRp1Q
+DYujaqNNVvgLXdlp5jUh7y8kz0NfteUgvyexMYUrzibJPKvsytTlQaoHl6TEiFURD9kXMy36L0Mg
+2LURpmGmrEbkWEddN7tYRP5XaefjrzI0HOHGVZbJheP7TLilGRPLjWnex65wmvoThJSlaij7qFGT
+HjtrYdo6LZdBEwUPRmpU+Njvk0/pFDqDmmSS3rE467QnqO88GcymdNlVdXftN36D90GUek7U1mJp
+pT6JFTFMek1tP2yWpenIa5ZFw9cchitU65C2UA6rGNsUBe8b1fmtLRZhE4ytEq2T5VAfGTSeTvtx
+a9RJYquexGOhmipuqQqN3G6UHUnzuo8G+aPOw+EHyyq/8QKrMX7orA6/ZEX0mQxWUakkiKpQGROv
+b2ld9TdmRaZCDTQ2xSpJM126wjS6QSGLn5hbOVMaeVNFRbGgaR82KsqdsfEqNow3g9PJXzUjcaDC
+MJff8y7RhTsVSRl5LQ/8SKUsI6ZrtrY9qVE0QYQFZRlTTUeai7HPKg1d9BlVcS+qckGtLN05VZZq
+L4csHoxgSkY3i/Niq2NOpRdFac7dMS544Zmdz7YdwHPwBp4n1xXjvlgwkXafAj44QNe+rxOVDL4T
+KG1ZdrJ2IrojfpR+SyfHvAzHnhQKkEMKNy0gQjdJWt0qKuzqOk+MroZYiqlXpIBF5P0YUC8ddEzU
+GOo4vagpNW8sg7NfvNV+oiJjGgMVdZl1E0R+m3oFGZre6wlLnigfk5+GFYSRKlLWQKFNKsHqIbY+
+yzGI5NLvaRl6o9MNiRt2MeMreNPJ9jgLNPMGRvmmHsjAld9lZaOqsZZ6a0jtX7C07mKXx0nFVMHT
+eHCLPC+FqsKOVu6QMP114PrCH7gldm0gHbIIOiO2VM90EqnALvjo1qXMR2UALO/7kkq94YHZXlah
+n45QUZN96XQmMsVMIfJtSKS1jPPEF8s0SMSngmmz2gSk9Q2wzB/Whg6a1g2dkj7pIDYu4VcsCMEY
+g3Yd6rJfC+IHySqpfQFLjiwzVSwV2Z2oiURZzPDHRVz3/ieHplboRm1kl0uwvq0WTd4G9VKkoV5D
+fexq2ZUkFioeiT+5VezDO4Uxo4sujXWmHIj1pp+a8lYMw5B5qdT9fQMI/UwnpmE7sdl8q6wg2up2
+aCrXGuxQeOnYFZ+crrThsUw/K1SSVGanmtIyd0GSh+GiJm30KPnkfyrT0SjVVLXRD6bTSisnDvmd
+n3DwLaq77pEGo/FTy14Uar/6dBDG/ChKoGwQ/r0S+Nfb/7gqn/K7pnp6anaP5XNV6h/H5nriP95d
+dU9V01ZP73Bi/W7Z5j+fq4zH18wR6F8X/aPQNUd9f1W9juLI3zXKfxJkvnrwIAI9CLT3I1CGmPCf
+h59/xum/M405mpvP/3vkSe0PiCAtbluUWERwy/kr8pQocSEkpVw40rQkypZ/RZ7iA7UcIVHHRLpH
+TASf/wg8GfsghWmaBBruEE4d+ZbAE4HvXtgpLNNhtgP6XFJm2txBxXQ/7GRGkMc0qEalRZMyd0Jx
+uVq1bc6LbTCJuFnucebvCrMf574kxzmzTZCijJsAmENypSH9Nmn4oMykHsXPIU3MKVW5Hxn8LuBO
+Nf14nd4cNf8jqp6XxwXh0sYKhc3FzMf95ZEoT6oRHhuGT/LbRjLrXkdWjArgX/I+sSpOjuhICvFK
+JjjSB2JZpg1R7tPBRyaiJPPmYnO1vFp7y6VSy4vdcul5y52L9zsP/3ueq9Z45e0ulhu1wTm7Hd5u
+PQ/H1t4WxxZbvMTZy83mylvj6A4Xb3Cq625wt+VK4Za4/XzKssD1m/vl1WaDuyncTi3mw8vN0n3A
+KXgE5c6f4DXeLJRy1+4adHEu7ni9usLtLzwPt3rAJ5uFWixwx6/eTm0292qzcHHNYrFwF67rzqct
+cD3uN9/M/YgXO6wET3Q7k1+t3e3nxXY+dbHdqIV76Xp4jVWvVwUW7+Lplov1R9ddbnbL+UHxbCtc
+ees+4q5rnLq9vFuv72Y2gVHz1d5ul6mZ7J2Lj18XGT0jMWfOx/byrSyuak5i82a3vHrYLO+xqIX7
+6K637t0ZSqZ1qIPHunFsYk1dpbSBbiy9m6/frwJ1pRbfLl2iztBhhxmkeEEHILS/olrXZShnOhDR
+183tLeTsgt8Qyfpi51247sXrLDRnbNgzrhcEUY/aJ+ibjY4nENx5D/fQFsjpDAF2jnWzEPeEVNNS
++l0ECjcXy4tZoZe753/4e/WwhG1cQVd3D7vlw+5KKxjO7uEBslQfV1Csze1qs1qtFqvVR3UJDdu6
+F2uo87ePH5/V8aNyL9eQNywPZuG5Nxeugn0utjfuxQW0b7ten1nOudXM4Li3Gk66zkfWe+N99e5h
+N+DYOa0WR/j6QiTzI+yRmIDkSKyAQ8uHq2ABs4S5X80GD7bd4mejVng1W3WgsMLtr3Xp9uqXt16v
+f/Xq5u6ciogZYF/TkSMAzhobWcqslFeb+6ul+2u9idRytZyZvlsC47y73QyTEAwEsVDAQHd+610t
+7737ze3O+1oA21bq68X3JW6ApVyt1Or+ugP7PKDI7WYFvVtsoeelWlw+xmp7B1F7HlXeDRTiwVGf
+FpdAkqWn1t7iBji03c0A87psxazrr60TlaJ9xieFMTATmgrA3qmvwNxO4bm/rZbq9jcyY3kA0QvX
+u1jiIRbA3defgKHg9PojHPmgSY792M+s/gp434ELuxnXdnfeledebDZA6/UDrAVgDcSHl1gtFhrw
+ulyC53A969kLeF8hnOWDt7m6AmBDb65uA6W+QIuWkAm8xGILK/wK1N6qZyzbrDZXm9unTaCebueb
+fr+/eojU/aS+B2oDsAMOXd3i7dMTtBGYv3Yv74Cx+HuzvlvcrX+5gPz1nbqHFxmUCtQKpvrl4+Xl
+l8vtevFps13/vLuBp3Bv4A7cxeLOU48f4YjWNxfeHUxULbbbj8Ds7Rqs98DVZzZj5b/AbjhXUIRv
+We/gl3cX7npxCVN/PvHzHT6eQeHOu7j5+hWK6P48I5HX7R014kOdsAO/MCRcDLzkBX6hu6udB5cH
+01eut/3t5NwzemA6r+sBOvyHZJNOyq4AWdAEO3ZXsH+Y2kx19t5awYrU99nXAy5hFxuFE4EOy9vZ
+K0PQEDxe3eKCjbpEQLDEq/nazWZ1ib/rOzDN27o3z4EN2LqcvSYs6hKWu3kOF9bbLQxyVvXlrINX
+yxlOQ7WGCoH9QOulBzy+mMXorb/uEOl46ysP17wugNk7/MMmLWYjnrWpKS2LWlISOR/fA8Numhwk
+hHmtbGp03tiUnSsZbxavUzmU8t+pMIR/6H86SIiPLB/FuNK3WVYrP4+dhd8aSHvzIX1AAU57UeIY
+l6/Te7kqQRD8Exutc5sjQThcVWpOUjgDSmtt5fBlZPfDMkw783dq93uu4Po3l/YD9VNUmJBS2ujS
+UzEX4Pd5h3pJFFfEr1TMQ/qFRDrbNOUwea+v5SXvxNyjFBJJCMLz47C50ikJG+lUakh4KJGtD0Wr
+kkqIVhXOWNTK1H14/zrNQxc5y0uYRAhqExt5FJ27Ofsrc3Kmy6wbK1XonG6JoYXX1Um8I61tnVne
+CVLI/JDnOILNrvmIibTMSJG1CUilXak6J5+WZdSWbh1nKbptr6UgJziJHgKaEWgd2BKZ4eGqRGnl
+tpFnleqiOt60UWytLaRvH3nBnKu+KuT6dXon9GOfnjzCtrEppsLqQK/KzalcZ6ZfGou4s6IzdE6x
+UFDTMQXF8jDZc7guP7OnMSoEihroi3RuHE/x6DVROz2woNNniJ1iopCWjTYsCvrCno/vAYajK8uu
+41GrYKSJ13YVvQwty3cFt0cPhRl+BqBOLs5m0qKwM2FZR6bc8da3m4hqZaYtV8KJ6SJqqFRBNAVn
+7PkUKYtwJmHNJnKFI6dgGkIkxkC0GiuSeg2KWpd1PFHlZEF1xsAOQ75nA7P2SR0ZWIcOU1WbWJWY
+iqswlMHKTkb9WZqMf+x5oj9Xdvv17dq4T/IFIyNj6BMTjAxJ5vIKVUGMoAVnzPmUzlsmt2wLiT4R
+x7pYO2VYTUZYqTJy2uukKGPXsHN29S+sBcoOY7a4kM+Nwj0l9IXPdehIrYoa7SE2FNYy6grrTMni
+lKpbNuMoSqHa7xynv5UjoyrSllZGhd6naztpsk2tzP+VlXV47wCvmjPGdVIDMXvHEbEwi/MjxIjR
+Hqkii2nVoF62Srv2m+D8O9VULt7OQEk4obPnsqmcH2SPgRY6YEEvABmhb0i3z2pUsFOzOWNQR9nv
+rOYo6sxNZcdCZxgzG4dkQsOO2lTkldJonKg6Z70rpjBelGUZrPK+YKq0xMr3k2TFRNMbSnd5qybC
+wzMo8lItLZiORSgV5nM4cvggTpQhsezgZcy8Sa2bvOZhvQlZm9VnJGjOZnQYUIGShViHMlsI8zj0
+GOrADs0BHZwwCpMtSWm31Lpk90VX7QLLGLZVXRaLKilMxUDfHcYkdCGDxmycTTsa+kwo9BJpHDhX
+WKSDKipGz47Mvkdjz0ajSKuS2D1Do9PJLEWbPmBoeQS0VFHVWbd122TDGem/5DkoU8wv2rbDXoZH
+I2VD1prwFAMrbLcq4sSdWJufkezJ9e1ROVKxsSudKdAAbaR1ndcGKXV77RurjAdqdL4Vca/fDHFY
+FwQMxmGkgThH2G3LPmeIKNGzHu3KNZyBux1v8jPcewk+oGJhUtC2mImq+JGfzQvqJ7VsNDqBjnVb
+2KNesKSOV6RN4+9NVE3L1xHhFB+hsvN4joCdHCOCnxQY0BHwSFbc89LrtG1cUJ8Erm1n9Y52o9N4
+Q4Ao8Mw6z9E9WqfVBoPWBdcqxczERdwXxaYM22kXt0Z1gQ4rd0kSm2fg7xRz52iTYNpFSM6O4G8o
+7QxdoBzMjUzxtTHaoV1Qp4tXfe6QUoW50Xx5nb3zHQ9hwZkbEowhBYJbPI4FWxb0uagDjbZxnXuW
+1pXHsrhTRj68PexEKI0IxmKCEEuII4tI+DQlvcVLNfZtuiDJ1C6HRrw9mHYwzYqABIEgRlr5kdzy
+EVMsnGJUxZBlv2IJx4xLLG+ITgRGHsgZ7TyBJQfUZi3a81d9QK16sIBWGFDxTZdFMrFcn1bTeEYz
+7JdyklJgxgnawdFWmo/vEYIdR2kYTqVKO1JvQ9vIVkWekW2RCXtRSqu7H3rDSFSGMlL/dlPAuCm6
+VYivkZCzo0XKZLCnpIH3n4zGuUu1oFcmoa1bUqE3RWVhLKUM0Tx/s2bO05LwEFRa0JsjB4GcxGqY
+iREcYfqtKjH2hNGPOFQR6Yy3Y7XznCtjfgtpynNldo+5dlmPNQ9KBFRh0V1Y6OJvMtaIbYTJr3Xj
+yybEZFfdnmHrCZGixIG6AwIRW9DnLsce1SrUdMJ2EOB1a9FApVFke31U1FtRsPZy4EWsctupXR11
+0RnSL9R2droWZ9ScJ+Doc+V3j7Tw+7zUGogSxOhSU5KzJWox3e6NEgQVVB+cOSdDuHWMLZU/sKqf
+oLNT1JiFwmDY5CHFTdcM0wLYb/JaDn1qRUAXhJ+2RC3HPIpQEx7xSJQN5uOcfCiVbo3poTNoKs+o
+ygu8nNfEGYPIUBmwjkEMI1il3ZO2hFYmo1eXI78gaZtt9NDWZ7DlFCk577Fg1uxo5RFeNr2fF0WW
+gZQOaoWyh+GV0/gtLMh4Jjg8xTzEQjABUxDHlEfgojM7jAZaYl6Bk2hRGYh1wz7UZwz6BJXZzcA1
+gnlEyqM0tg5k6OgoAoSJCQNCVh0qXWT2GQGdogLVhg6Ahk2PO3awItMOUr/ASN3ouGjVG9+71snf
+nJM7hKFCKTi8DfrHzz2FPQuSNNOhESSl4rr1l03S1G7CMEeDcsiZPszJBe1Rmo/vUcqLUfvTGJfK
+sbrPtszZIqd+eUbXZq94EAZgOShNztgHzEV7/5CI2Qw6K0yjUKZVkI86HvRdxvpi4wSCT6roh2H1
+ur3Oo7kvKZqUOpjuxNTPcQo26TROew2KPHDAQG2GGJDME9d3OpqqUPjhOh+6YDFGwlnlRNNfxmhs
+a5GXy5D1ye3rj3OKyRCkJTDdgBl+drT+kKDxZg/QmkSGD7I1jIUOre5Mne8UEYkBZo5hZFRO+ZFH
+s3Q/RXWJSZ4hqmjkjn1sNV5NnNI6YwOnpImZaZSMqAPscGZk2VMZnyc5YSOUM4/zwY1DZinSG0tT
+dOu8McYz1E4ty8aUhGNLji0Ox+FBO9TWkHVFqWQj/IukG/WmBIJ6b5eQjWIHR/yDGPK4qC1TWbEx
+ABrGdVZ9LNowWwyCRW8XEdiGBApoCEEdcy7JCyNxonCOUWV4mfYOd81IhG8tE2H2h8wj7fBYSKSe
+W+d78rGnzmiMWfeTiGW7bByoV/q5fQZvX1Y5ZjKYDRISfRRkbbPg9shk1lQIkslCxa0ffTRGDD2b
+Ot0WvXCURTpMUovbEjN70HXpX6DWvbWcsjzjW+bg8AhZYN8Ys0c9TJj2cRAwadI6TYDp7cnqqLlo
+hrDOr/kgSPdRtH3P3KF30mhTdRiyP6OYJ8wAmcC8OYBZAiHWkRkYRShImzmFGrOYYSySWKPXl9FH
+xgOOSW0f/79ZR+F4KOrP2MkKph957JbKIZsIUISHYaT6mlVLmU3nLGF+7EOOmhApqmPQoOddlodi
+Rb05GCoJsVphFLipLYvNmE9yw30nPKNCLzkIUjZDiIjcg5LjZApYaZFKgINFIiLDG4tU24pgbuST
+UzPxM+yz3j9j5zOPjlcHy5urjIAvjgm5A6UNEy0GjKwWqswzw+OOFp9120/fdStTzzRz+h0lkOGi
+DFmxzipaP7wuwpfqajIUTyiyHESRQLVD8lmuSdD1GKkmaRV4qSV/ppV8EDmKU9rJM9XycxHlS/ic
+KSJhRScNFVZ2ZKV1H8URNXWhcoMiYdVtu4ap5Gck+SLZcEzOUbuFIdDZ9xyFeDRuMAFXNIWqYqOa
+XDuPoq96GjPuVaXPr3XSTZFK7BD1Ipmm9TkfcUJnBcGO4Tn+Q+XoeHawmkqZ5GhtKyP19VIEydi4
+jm+G90VdsfiMGZ4APrRJkCZLVPxn9DtaLKNGgkl4TGePVn0NXEzuTR9bTjpepabH61DcJSxDmjz4
+fd0sKbbXSGXUtf4UVjwvz+RaJziPXizmM7Fz3ZwHRg81iqbYTz/pHmCvQ5hr1zbfewuxfE4GR6Wj
+n+xq+7Opg/DNrgxMQAsdVTPMagrrSK9I5qRCl9BkMfK0cJvAZ9PK6cyoPsPuU7JF0oX5U4ZU0uTz
+8X03k+exj6nTQgV163/qxpjJxWg6/kUT8VaeiRtPEXNQskL10SH4PeJmwykNjSYp1ISq+rY0i/ay
+z6XhdVbR378OBSfAz5pJEDQTJRp97HBdps/FKHOsS8bS/xk35vjJbmS3SvI0XaOZGX55nd6JpaE+
+j4ljgWqAjTGBQ3opN6KsHQvgeiFtzwjRvKyqAN10XPN2kdloN8MlYmmoFB/pRmRlZVA3MTaOjLwK
+FB/a1kfLL2cbk+aoA76+sBOYaiOm4jPKkbnYeLiweMitNGiNXJlZFrt+EdaxMjSafq5v1/RnM1Yd
+WWn4mjOZ0ym6KDWCJHseJDnSlbbpzZQyCbp9jurN0Eb8ko5oMlZ5FH7qsQvko92Fxpng7oQYMZyA
+EEAi+MKLI3PoZMezxggAdQ0qBH4OKy/njS1S1tYZaDmhoTZwTmAoGxVjDKQfMnZifSu7HjsM/Hqa
+3LSd6Gq0OnvdVn7s9XlgnCmynFoaUuq5dYJaMZLFQ3q6l4EebCdHe5NbG2pM1MsCUdxOdpSe0dBZ
+A4/CABtRFPoMEqP0cJCHpLilKXYw+bki2Ax1ySuUjmIuwuXrmnmSCvyuoAKdQOfZkexBF8nKJLME
+0AQbcvRC+8S+wA68/s11MBMNR1QjbBRwBZVzKrxHpQ7RdrPGElRSMUgXU+jpuOYxemreKGyiz0Dk
+Ka1AdWrOYxBUcPuIdYRMFvaTALeMprnrmukmK3SvLMRTSupYnxHUKWrz1neMT6FEjLzucHFlXscW
+K2Hc1aiDbR5VbFkngdyQYSgvpn5qz6zuhMiAyKhCO0SCpjhCyUTSsh+wIUD1XVmiJxsS2nlBYfrn
+oogTyg4Sc1EM9VlOnPlB9qQ2lNwMsX8P2XrXyczLMDfgyaSwIxVFfnX3uiKe4CKYiLYkBhQcB63p
+Q2L+YA55E9i5spxQ5B4eR//IKy585Rso4qLqz8O3oyM8NiqliEnQGT5221NhZ0M40FzFXeS7iRF4
+nGLPXd0KY8H9alDDYPbe68s8xVME1WIuP891ppkNezwNm9goM+xmVbJOtxSdxEWasUAlHDtP/+8o
+zb5hj5JVYiQME0G5Ktsm6jaA6iZd5GPSlW6UlBDl6+ROuBpHzk3ROTaBTzlaWNZgC2pYm7lqhqlZ
+TaMwrifLdzwtar0wBmfcSh35X/4FotYMKzAHZEtHRKvM6c3IZjl2NYOJEcZAPmWj9Sm08mpJLM2W
+fR3yMzRPpGfzd8kAMQmyetTbD/la21NRx6zKFTIlUwVhvnXKIf0y+mGMr7Bi2YPISOUJg1Qb2g/Z
+GbB5GUvPHSFAKCJq7Lk6Nn7CCzmwNMpVKwfzpqXYc5iGVfBo+LrdTbbhL2pf1zujrM94vtn+Dt3R
+rK6wFMTRKCgcu6O84U7UoD6pfIqhIbQzgkXMYnrzukBfogCyTok6JEbKUEc79q+dxIb7iIYo2Pht
++IC98l3oNfh+sHzJ/aF4aFoRPL5O8SVD5zwXJTVpwQfiGxEOxRk2mRGSChFE1kRZr3SUi2unnRLs
+1UZLZSlYLpTMA9Jho6sfn5tYOEX9OYo3Bb5AAXH2IfXOKEhkcoShpCzD1JMGDFNhq2PYu06fRiZ2
+C/tT75UDKZM1isXm0+urfwlHDD4Ee/TQkmAUldJD+ha6EQiTARIU21w3+H1MSt6vaGjbyzdTQokU
+lSG0cZ4L7IeUkDtQbIWGl8x9R+ZePtn9iC+GQD9/aXViDM/A0UsrZdAjDMvOo24AhiPG1rGRxENT
+w53QVP+EA/GSPk48M/FRgWvyYhVko/5W9rJcxSPjn19f7EtjAXWU0m0E39JEQexosa1lJW0N6pga
+iy/M0iJKxDl9s0nOVPClGwh84Z2to0AAFmJjQrtHhNgbzjYe+WVnD8bmX1iKTWerx6SnczxTU2PO
+z8BEGhjZT+U1BtJ97MslpDs3B3bC8lHcpihVzl8k8qKdhN6pyPq8zVVAuPAcjW2OjpkFG8z6DVvb
+bow3h6SYgcMXpqBHhl2kL6bB6oCOhZ5FZBgxW6SdnV4K1L0WWTDw69dZeEoXMXWJb2OZC5aYST/U
+hiyOCPKtET5f9vWGxJq7KCZkHh37dFPWFdlq9NpvRBWX37AH7v9w9iU7cuNMt09EQAM1bSVlZo2u
+weVylTeER0kcNJGiSD79Pdm4i89lowv9LxpooNtmSiKDEXGGmN85Cn+JMUjj8ErRdQIZ/i0vOJPC
+gvaB5Ju5jiT1go7iPS1lgT6mK9anJCEZ/EvosDzRofPrOw//Z16ADAvy1TNkXEIg/ybCTCTMgJMl
+cLUwRa/4GENejwkOY7P1ndSgOQrx2BGX/R8CDhYGt+DsipMCRf79rZth0EtnUQT4eNENwS+8tGXo
+X+JiE+/krm+OO05eBTZPXKAAQAxHZvf7Usz2o6ooTFGiXWdtXEp9iifL34mgb5t6/3+ZEvEsgiEG
+ivrfl4GpkYqGNB1aDozCVHJrbRfIYYo4aZZcRx+AJ45XIiX3zDF3XIB2PrDN/Mft/MfPeBPc6Bzt
+Bsnt0A7rqmqXFesJieF+mgqVtqIKhylPTY3TjMYbiIyHfz9Mb26sf1YHuQ9slRidVHRwfn8J6zRM
+Ay+2AX4s3XaVLbk/RN1mj9Ng34MZ/vZZ/3ep87n+3ww6pIXPlIUXR1UNB5PKsk2cnt75rG8C3z8P
+VJ0bwyWyORQ+bw4Isb3I+oHD42hYi/0qAgOWNdrPYr1MPa+ij8Vs2H/M5s6LgkUPlA/68rMW/81b
+TD1d1myqunZnfXdrHDHtiB38TrL6l0cr0M+DBVYMLU7xNlXeIBRhBA2mtnK+VNdbLFNxYVJVJBeQ
+6mvof4oZEf/fN8ibgPPPowG6PLO0sDaKkd+/2sQK1g+eDq1yEWcAgOdtCE0R9B7DvMUVrmpM2dv9
+1G0L0PZ/X/yPLQM8H3sfvAgQ7RFr31zJqzUFJQwWK9liuotoZb7JQXp9Z5U3EZ3C2wQEcaRR+IAp
+sOA3q2xygHhlSuKmG3xnG5/K6Y4vrjqQ3JGD9rit1TiPxzQJ3Tvh/I/jh6VLgM/gwiWAU+ibUFfx
+KWKCq7SJo6mP75NstsvzYExCaA1+izbvoFF/Ww/nAnc+cjlQ1d+cwT5QmTD4MjVeUFvLHYYusHyQ
+TbaFtf33b/eXpdC7r9DCB7kJ5/DNo81Qc60CdJqGoeo4sGUMcI0xGULasr7zAd9kBOcPCBYEIHb8
+U8B09M0e5SJfYrfteCodTdc9G+cTYUE1CSm6RwN/mprtG2+4cunNnmb7Ox/xj3N5Xh7QCJI6MHew
+U38/IgmpKuTAfdJgk5YnEkxS03xFYzoiKfKDKXr49zf756lIkWHhtWLzIF/8R/v7P4F07pxgnCGs
+JVLQCyFHe1iG3rzzUv98qt9WSd6cClGlFVlEyhog+kXTlTlciRxYd3FfPVibZu/Emb8th+7smZgN
+EQWe7/eXmI3onQ5l3rUIYtHIjzNd/dA3fSZTudXlSH0yHryRAz3+97eZQgUICizIk2hg/b5wj1Yj
++PsJadJyyl97ARhz0v+RDoSPBKcTXA3o6AABwon/fRE5ednDiRpeUXic1yqaxhYoxvxOB+7PjQHx
+Q5SjA4dKBrn4m3fIYSnQ7bzibZIA9cnKYToQ0Ncu/+sLwyrnHhEgUTSm3ram9JTu/VwS3s40QWYG
+uetxiPR7++HP8JEjJKLEhTwTiGt+/u//s8nRqmc+XUreEgtrsb6PcL3tMb9wDGD9vz/QH1fcmdGE
+nAo+jAWEQm+vuHU6K2yHQbQLZGLfYfannrKsW44Lz1yry4lcdWiivrPf//Z8YEKkwG9BC4Ds9ffn
+WwNecLfgLfKhXwAZg8auk7GoHYn3d07y35bCicL9gnrlbCz5+1Iwp7IDZF9AcEJq7uZ+Us1ky/iV
+gmD4nw/TWbkHDhI66ue23pt9HoVl8PNWinbew3SqtPy1pvl71IM/vxf2w9kqHC2m8x55E291CkdB
+ClUrNmDhP21TCG0gtL+B5lXfRv0sb8dA1vewsT8P1++rvokTLPcT5FpsaNPYhgs7D+Y0aZtc/Pte
+/DMXAaiJDhquTcjPgW+++VbOD2IhKEpIuQ33Smwwqivc2Cg6J9dxz5mqh52lF7Q37Ou/L/23B8Ql
+hsoWRnHogbx5QBf0TIhzqIfy3LX5logbYaL3Okl/XQVNbaD76PZCQvbmAfkGxhPLhrZIrD2m8yTA
+IYvf6+v+ueVR0yAQpmfXLGBxb4qqqYjUGJuet9EW2Haa9lknx8BXoS4WlRjzTkg8b+v/6ebiMbAc
+xCgwz0IVhWry94ey3UiXJVDewmSTnjqxhIcxg+ciX8+9qmqz1Tvb5C9HAF0/UHDOfXOkx2++VW8o
+JbbYYaNZINswJgZmVZCpvEChYo4WnPIbW2itDv++Rf7yWhGPQbrBqjnuzDcfz5Bz8rVY3na4fI7Z
+yMMlGza0dCcU8+8J5v/yUpH854DkcPBg7/jmpcJk1BdVt/BWG9NNkJ4h9WvAPijzZsgr3V8IOg3q
+P4dlNBrh2XW+4GARVr6JLbSASaPeNtWOAEMb9JbYU76b9CKkk/3+7y/zLycBwBWOORrFgHPfMqjM
+VgAF6K1qwaEvGhvbrIEP5I//yyLoRKPPARnY23I4iucOfD6jWhCg90M/RlE77lV45wb9Y1+gfYJr
+DLgfejZnouvv+9+heAO4yKcWuvLlQaLt3sIpeD/1sOb9/O8P9EeAxH7PzoAYskRIed6y20Z49nYj
+fEFbPmXpEwMzi10OwUPg2k5sjaoWN/de9g3d50V84ftWpe9sEUCof3w61E+gSiJBPjNBIKT//XlR
+zgkIPgXsZrNIQANOQioTeW9l0LBKzhXVKtT5oIKsamgnNZd1VKooF00M6I4th2qIYhV/DCr1/ddB
+gItBL3dZzuS5L0Z0KD4zL/jILwq4fpIfo+KElQ0ZIgan2UHYUfBDtHcRS5vej3aJWmMB9/KTqfia
+Plk3V2Rq8r7fz/9/H5b0dSl6ZX7FJpr3zyEJefphVcWqfiyCwhoz2fwQHziZhoXXMKHk6mqb+XAV
+FTznAMe49S+uHw0Achherrw4JnQYYcYbC7tXNRC2cr2N5Nkpgae9LJ/R3knodd5ZHf2oNHRPnwQK
+whTumpBExWODN6OK1krCtxE/fnLsal65Mg2Q23H/GHuSQyo5Gc5YqwCSi4Z7U62fHE1XfrdOGUkv
+ZFUxNAjxLFP2uki/paFNl90V2cW6hC6kB2M5ejGNjGRFi4u112Q/GQWqVZ3L0sLAFcqUYSgaVS2V
+qr2fWdROPUv947SFePwh5zFPhpOBS+DnRaOcta1c4b76AXzZiX0wQxVAdt5iPaBQsRo/NQez5AVW
+3REErWkYx/BxzmdwWqsOthEHp6PFNFuRSf6gzx40qiUp2arPGfOF/jJvq+w3uDbTcfuoJ46ma21H
+LtcepSyr4os+TYx7zAdnBKqILmwL8EoeEcprmaxb+Jy7Qnafhqy0CznCPWC38lJudusfin6bra0h
+mSnpw74Xk9zh993tnjdnVBY59uBzN31eC6j1UXeNc2Weg0932FvDHzmQh1KnnfxOcWMnXaMIKTvd
+hn3lMA7nNsq2j1PeR9nPJATaCTSl9dJHTd/ZgsMytbRrrBu/LXBbb7tq2jssj4NcPXHmFTjr25yX
+4eTh+zy+lpmIuKjBl+g97ha5FfsXxEqbRLXZqAj3y1aCBnkiuvI6rRM+rlnXiM6k21oPZUjYT72O
+CbxcOcs1ZAvE+zh6KakPGnp16sJqG/jALv517qsQX8HrloZPFHbg3ce0YmZ8grLVyTarGNkbyCJC
+UZeRYWNrp8FHtwp2ThD7oxkfniUBe8S005Zj8XVfihvveU6fDS+3cCzZhAjUgHan+6jVbIo7crF4
+CeS1Hhfq/etIFQ7qUUUeFg1nn/MAisjIybhG1+maqLlqAoMf534ae5IVson6Em3AOiQCWMD1RqDi
+rJrYqi38yHoCFKtlvQYLqI4nH030CIrQWEItF8MPOK55FMb9FQxLAptkKMrZeJMkHQFLFR4/oCXX
+MMXuxNdsWd08NEUXhegx72cYJ0C141nF62BAkdlqBNhs+6645z38m5OuWrfmzIfQ+qqAEzc1H8QU
+ZXK9XI3s5+20OsiCdWNRFMDAfE5zlt2MKc/VBt+ioR/7S4NozcGRjisz13A8X7MmoYTMAo67ezkn
+lyFVCF+fmMz8tj2OcBIW1UGPVbHHn1Y2ofZBdldmKT9jkqS4dSY4d12CNKSTw9wFutd75bf4oLWH
+JVBbkZ2v94ovfrlY4OUxcDAKzSR4jVEqe/WjhIV7Z4+G+/yXmYe9uI4joaMvxZDo6UkVUOOD9Qey
+EoiHEJFOP5IUMblOLLKFZneDtddRDtfCJ48CeXuOzLTKk5RdnlzrEl5UDcJX9K0wCuZGw+bny5UF
+edozFsMgYl+6uM7hw36bs6S/gy23OiayEnfA1WbgPaqodPZUDpkSB7SbVpfUAL2n/g7e5DuEu3O6
+UPKSpOh9f8czDemLyblGWwBipOqEnwXIIe7F5hvwEGR6At06gom0H1nW5jvS9EbwKlle0i0pSVQT
+BS/uG5LBV/4xEYNcbmLcwOx+oYPzN4h380ugse+fu7Fa2PciDKV64IKUxYNZolC9gAu0TEc9kaFo
++3i2/oRc1cNe3MHBmx4WotjPqdLxeg/a6qCOrhtc9Q1bdsKeYzHoLg9rnozjj4pRnkNUuOI9wNnd
+runPgVp0p2syrQl2NfZI5B6yVAGeIqM3+cfRhyVc9YRTyPqpY1I8s6400XhBd53r4hhla+fiC4dC
+gbkm7CVff9kShtw/raDLuNe9ielGGm0ITb4lq3MwvO/H0eWhhULDatnABanrXF1V/ZBBqzH1Z1bq
+2qeL003ux2X8WWwqimQ9lYuGUrbvElN9XSiP5udioGrApTRho/c1mGEhh/v35FO44G/xpsyIQFq6
+9VSWVkJ/DtxjuR1Itqc1iDKwCyonh3gO6oHeXhV4oWsNDdUA73Aew1NfgAcCjmU8EQBJbhpAK4It
+Pi2fXQfg9JntRP3oxpmX6FZKK9ANnuPnmKBj1qTYi2lTLN2qvustlI8geOHGrlTUu4d83N1Fh/PF
+bkSf9mOD6LO8lDGA31qnVrxqkHoepZ/4j3zIjLqYJ5c+zPueP0B02pl/roXXroxXB52jzq/Gfem3
+j8gUSrSk+6xSpyXA2OIEMxNmDhh4QV2TTtWaXQQdgdYCuq96nuICH8sHcrmuPopb9EZ7TH+Y4XbQ
+gIgHK4JskZIfeZ6xG1Q3XtWzkuHrQHB/X84mWehh7vUOCrYx6rAusTjmpY/pkUZjd0LxAceQ2Ys5
+AqmNLX07q3GKGgvSeLsCvdhOO663VxiGO9ksDHdMkwmLjzJ4CVcgC1arwdSCfROXerCFr6ktwR2D
+U1yF4QOD2207eKLdVQfLC19zPhYXQq3Gwa5mL+M2IriG6vi8VLNNiQDnI94YbdZ4ykmbusRh/sPW
+9Y8Id8lnnU6jrRNf6U+UF92nrHPsVw9k5yFeYX2CN0JIdOyHCThSVKwRzsPEq72uSo1kFaYxc34z
+M+XEwzSFUZ8Sqvl86SZodI5bahL3SUBlvrR0KchQ80zvgIEmbM1cV4oemC9hX8/xZ+7O3wGdcC8m
+2xjG4GePHGUqWhqQi4CX6BUuEV4oW+fjlnyt9kxddzC4dy2YzQOeAXb16Qku9gsU5WHgXyZ8mqEZ
+dkmOKVTfGX7tCEpRls0jaH9KJA2KHXXkVOJf0YZFDt6JcuzrlMfd8yo4ZxcYA7AndYFMBRQMXlZT
+U8VyvhMyL/tjkXD42VR6y80xnXQESL8KoqoxPmLycMEHs7cmWYxZFUCoo+wQNjU/7oVW2UclOh43
+e064qZUrZl2LfnHuNiu6GTLrLq26Zuz2IoYLP2aLfFhClFxMHVfZ5ZRKx/CHCEV2WWxxqFMog+Dv
+XhgEMx0GKo+jsuQuAbVq+hZPAsb4JWImpgi4rWv7bsFfm4qiEgdbWWR8eTFkHZjiY3FdSV7QUykR
+w7daVqP4KULq9p85TFdelJxxn/B+GNJ21FW1Hk3oIjxLrMcG2RKFG/cOuscVc2v2nGRel1cjgw6g
+6VPbPYaiw5iVGcz7a2cZkku770jybJirpM0n2rkGplMVLBd7N9z7JUm+aFr1N4OcFK1NlHYGwbDi
+QzMyi8C4h5h+WpPIf8EkEFbVxNIhfkw2A7uCDBQH9SLWxaI3JrTB3BYcS4yUAR8eN1/Ohojc98hr
+n8JGYOsSTclwPcWYV9FMcP0OtRaT6Nqu68v0Ap8qs8ew9bvGVh2rRwu5CT8wNxhWd8Co+4thJ0t+
+FKDqiNpCxoSBCIahHRwIU33dTy5+oTs5E6Kg5uRHNCH1oUot2KDM9ewUEhvBgyjrOnUiyKfnz5gC
+sNdzWQjMK+k2xC4gG5j5Uu+QSKqLFXrXe/TeEtkCP7Lx5VKYGAoxgpoF5ysfiD3B3NzxixEjaOZr
+5Cqo2gQ+C79AkwF/T8S3TLfaUUjhIWDpPwPWVz+TOHQ/+nnaf8D6pf+6d0LejBm4eccUVfp94Jt4
+GhmRro2woV62dIz0KRLp+LQKEiFmqjikx8LlEklBxCrSZkgo0lMeu1hcplLpJ+DsWRca1Puo3oIZ
+08cVGjt/gAJpbnvGc9wFBLdWAxovvLGYpOWAZHBEgWplmt8DlYcxRYCYqTqCox+tR1KshfvEx6oU
+l4YKpMPGRsUhSIt7qNbDmJrDDK86zMshpH/lHZTzNUhrkXrim991a9XC0hNC8XQLEgWDxDcNOWQ3
+W5XXNHD4BIBIUf2K1sT9igypfmmaobK1nC2+2aItA2hZatxnINjJAXWISg4sQ3kO3svZLNLFavm6
+7zuULl2fKlFrzCb5DrAENZCpYoEUmayfSlZM39ToSXqVQp1+iqO8HBq0s9cFPhzoAh+hXBFzwzMG
+7knfL/GznZjFcZlC9yXHxJEPeaDsa2U8wWyeZHuoSLWL04yMB/RJk0FVXCiAToeB8+W4U6WHQxW7
+ktX9NvjbfZEuOkq6u28F7EhFnRFvvvMUHglweRnTvGUuKU4yWm2Exk0XvuqIWkjl53J0F1bo9Nu+
+0w3zpryfvs4IHuFQbCW/TXgS/Uo2tX+wBH3wY7ro/KvtJH/qMzhkQNIo9dWWd0iRMoAptvbg+NgL
+CRKub5d9UL/cEpFvIyZFJYhv3n8cJgNLFj0F2d/xYaGATZUdf8ZSr77ZfSXEwRMqMTTKye2aKIfB
+Sunol19dTtkXn87dw4Yr/D6XvXntTVaq2uKtfS8Ws147tcTI9Ud88xr+Ky5upMDYmlrK/izbpRq0
+hYh6iTkEfb99qFaU4TV3wqCq8v25TCiz4T5OlBuPczRk6MjHcDM6Wu3tVvNlyIoTkMv4NTciy+FN
+oskdXTMc9wSyywKNKtTwLebC4CTTwhWoSsEkKIE2EV8d9tRBwiGcm64CMF963BMU9odkwTCu2lBj
+TgXHu64ro0zeTFuydfWmC2wyZim9Y0vZP4N5IZ/2ZEMfCIXfpjEGrFqiGqNCEENUXrpHIbvsp50q
+ebvrQXdXrseYtENVIok5rk6VphHbGVHBGKzuMl4KaY7OVdUT7vRpaG02jNccCm9zuU4y/zLZlNw6
+jEPKjnHZ9587JKzbVdGt1WNfMe+gfRTQGOjUZazBcJrlUMauEBdLTEfedHSmP8oldSABjUxe07CG
+Z7pvs2nWTOcj7I482WuPL3NSgCL3o7V9eGGd8+4G0SJTxyoRyUHR0uzNAsoE0tm5Q3HH8PB4O77y
+Lyi606dMpN1HsULoWw9myZK6I8gB2kT46JccuLqG3O8cwtG9yo+rHeYCY2u8uS+Mx0QofMIYLyDs
+eRMgy7qDp1vqmn4OOUY6lSRfDh3S9qwhkkaXmd3xmBVEEPCBVHtR1DjP9DsQPvYpmqn+TEGn/wKY
+wF93csNMHNPL6nO52+kHOoHyft1m9Y1nAUOX8JiY/BKlKH8xZqeAWwY4/+DB7RW7TEctS6y7eewo
+wsx+YFFqkzqmbMGbRcxAHyTJ9KOEuQeK/QSsCETPYrm3qFIxOoitPL6ePcm+WK+z2yLn61c5CPo5
+LQCh1ZpK801ouE7VTqL/2Wg15Qphj8ukXjGM7CsQZiTJW191NyFb3IopcvF0i0Ee0QBpldtu5q1D
+khLFW9x6VsgJsq6F5LVH3fFKQM16LYec4ncnMyQhIG5MJzpzjCvydnUogSArRfEfhmk5MUX2W1ae
+h4LkgGJNvfRJ0TW6n8rtgKzJjw3Vgb+Aps/uky3fba1QH4VGYU5ThVrGThdjDj/C2s55MTVdCsH+
+Vbn69WtiPX3KQ0URu0kYH6bRlJ+zLo39ZSU68TQbPn03oFjfwj5i8schHzBoa4ILxkvk0EitE9zA
+EP8PS/wo7YgrgPWwzUSIzYsHN0bF5y2dUcqBRUyfe2txdeyTh+onX4WTVybi6bXUKJKR+6bT1qZj
+TF6GcoItHWoGhoK0pDBy0shablTAFMF6pnKxNY54/o2QXXaHftlhfIShYbimOiHuxhT1BPpAwJRP
+cmH8Zg0wSjgxUsWXpRbFz07R8Qr8dWQx0iLFiE3pntBZLpYWNGS2N64kZd+W2QwCvURDDFaZ0M3f
+DgCbvu/SVPnRmCk5ZrlFRj8ajtFrybrq12jZq/sc5D5w7UdYktQiU3JtKng/XgPKnDAOaRXDx04J
+MzezGRMJQ1aL3KuEaRSGb6Wd+rhVpNgbtc9paAyN3Q0tO1/hKjTDYwkX3qLGlCmMpUrLLT7iG88B
+mRukzirR5BXkIsjdIXpPdJvJTN9IqOP2CwGU6Kkg+9pfwTUSl2OPtLqvEYvIRdVHzp6ibi6Kds1K
+qNSzDkGGoll2xWIZ7rSRS3UIrhfXfvRrhgIs82ldYXjd3bDnuNXGogOMKbd1vBgKAEWHAObhS8bm
+8HWpXLS0+IbiBnOckritdo3NLQVTnw0R87dKSdo1OTKU7wAZ/C0vdtO3qJnHD8Z5Iu8jWDGY7rGa
+0QRu3ZQaTOVh27C+xqlXSDuGjW4fKEu6vC3HcvHfRCCRrkdhcApIafAVIqTqqAx1KtLTmQAAifOw
+Vt/zbFjHw7LqsL/ubIs/lgAOL7yNehycYLeXSe3Vd7VNsj+W8Tg+wzidft4mwtdmT4l6jQbcunWE
+ivtTILyC6VJeTcd4zbFLq3zb5YHorSoPbmPzcLGi163rZKRxuOlkhZwloCz+mFON9mLsEjgDpGhg
+y3aYRelqWJVO7lCWfMKotCpVH4WDcQKs08NIarf27tVQjjQ0KeKxOCiJH9NOdsHSrlwK3UbBu1sk
+zwtqWS/90ih09IYD1PlKoac2L18JxumV3XcZzi0FHy3LQ8lJWR4wDg/0wn1f/N6EIRvRmSo2EzXE
+OwykQ3dunZsJmPavxBcRbH/xHYbkIqv2+cvCNricsmJb0gY9ZpQ1vkg3dHpIPs1XmiZEwqIzTdEd
+grEeusTr3KtmDCG73/gubmxE9rHFcDaUQl0Aba/p3QoT+X41835MEuQYYMB0oAGrWWGIJ4e475Gv
+WxLhf7fThzjlyNs8D5E6BnR9aZOPQ/6gJFgDtfPbjI6bUMUHWNKlRY25YdsPCOIdxvlFPprbHJ95
+btVKejSs5qq7tx7GODUaJSI6WbB29zZzcOdsMlWVK7ZOQm8lY/oRoIpCbe+nMT6Hb/l1cHRDmIZ/
+G/74gGy6Jiy2T0mg1d2snHEn0PX5vR67OGkzeEQ8mArmjfDzNnB8H/M9AVwV9xsygUgnMTluFVpG
+z6rnHTgevLNxM03jEG4FFSjVMlyDqi7NlrnDHAiMO4kMu7we1jK+WOfZ2HoG/v/UY1cZMGtk2aNX
+QacOwXjAgRrAlelqB7oXCtE8605bl2IKKIyJZ0CZjJuuLmE6zpp8Y+4rHaWJTj2q1Ev0VNO7qdjz
+X31a0Q1xqzOYWYcNVNSZlCE6itCJ0K4ssU97RhSp43jwGt4YVBYAYYZCNbOaQfj28MZyJUgXadjR
+5gUfVnzY4Z+WNcBp9wXZ/l7eAiRaPzFQ5CIA/miFwMt2D+j6xQZAwLAvgTSeafBH4wF3k4yp/Eb6
+IaApSSvxxIDQzwdVkMo3BPXBfYVJj3sDdREmL0aRDugzeykuMfgQul7jAMvUGZwZxrZA5ro2GzA+
+hS8ZJhQAjmZrk/GZfqzWGHV1DNHlIyCfGC2MJd6QCG2bqI0ogUn5wsz3G4ZA8hZ+3OJSiR45hu0I
+JlXavbffEuYjiXxvn2+4UDK+TAwjT2ug6QO4v0HVmWEVOqzRuK4HBbTvNkwZGmB9l5lP/4AMmCla
+zT+TbXV3ZGTmmbBpkYdqXfjPLBW4Tmfrwrfdk/Uu9WP/c5lg4YHiIGV3sx9zhCA2Jc9WUvj1WnSf
+LopkSr6zDSEPj4o9Blw0bO3mxvVLMRI05kOwcNzayl5CkgwrF/i18eyAe47eAUHTjyhVw9ykXeZf
+QJImX0YgE7jIqt7pWm4x4bdwKwWe1JnFfpx92Xvw/QPGHmDM4fpzjeDZgmw9/0lg4hg1KEbLD0my
+c3R6V6c/EaeQWfdmi24lP0ca1/fsYcT1aZrdxPYa4AjUtyAyF6Rmg47zW5cFmgOaUfLBxR75LpYc
+7xJHctgaWtx3ZWERrFZMtH5cypEv15oVCcaKJspmbVdItClhoV0mF9tCYZWVwWEla02MUaZ4Q+dg
+hVRTNDPaqc/x3qNZKuCPt9cZRdujgzVJdoFLMEZfWzEA4UlQ04M4Ow0cqzHxNwh76YjyA+l9nZdk
++sWIorQZXb+gFLbp9MhdpfcGePmgjxUdYfqSuCF+WJGCRE0Ols+9Rvq/IhyUPcAnyEc2KONdtCLJ
+7hzc35mabS0Q6yBPskPhLykUgT/LjHNaq3ijqsEm8S924+Spi/k6AApe168YKIlurcUgOVFvzs73
+OaxJv6+4ee7QaY7v4dc7JfcLuPAMLTslMHrjjBA7PsbrZ4bOX3Tiqd/uMXNUq2uWmxDqBccrP0KM
+CPyPk7Ph8dlr+KC0Ri6flkM1gM2jydCAYtt/GwV6sxBRrihoySoEYKJZ9PcJ1LDbYTV2PXRMA+J3
+oPLh/foEScUqo/xBxEIseNUdcoUJbNBvkQAwfRg1QnHjucOOLaeo+GXSyD9Sv1l9PZc5rhwPzU3c
+FDZzX9EHL2ijQUI+5bC97S8HCnr8+ZqDH+Y8TynSv6lD3w42NAlr0NYNL9zZ+NULWca1TQS5huh9
++pkXOxrPMHmG2SoHBPx5k4UtahkpYPhZh+GeShP8zWq1C1JaWsisWUSZ/QLukQHtAIvgDBYraK5G
+qlFmwTQ++o7eCdriI4KabQTgw+TGryr6JAldkgMmtf4/zs6kuU6kWcO/iAiKmS1wBsmaLcuSN4Q8
+NDMU8/Dr74O/jYVO6IRudEdvHO46QFVWZr5Dmok/JqD89JFDwHg7pv8b4CVXPWSjPv+cYHK98EBM
+aKHYyMudjTrE8o16aLvDiHf6JQ0fdfQqttBXsqUyDyI9VFS/chZFP8yi019Us0yeYKnGP3p6sy9Y
+eYr4AE5dPNVpYv5pliqePJIelZ4/2NxPWdXG9eQ69djszMEVvyCOy8XTwhQTACZRGNmFmuXj95LR
+XealFpdhE3SwQdjICDv/4zxONd3DGpw4GfKZFA/mTb2zMiWWu7ZJjC8tbhPATVNp/AmZuczMlMoJ
+g7gZrXFvJwtswqQ3VYWKoVLa6Doy04JnBhlQ/In9Ou+rvtdzv+DbXZaiUsGSEWT+yeTY3UvGTdeB
+EjIk1Z9pV+s7s2RgrC/VXFe/LGHehB7GROaLok0gQmXkaN0+pYB9sDNFSN81FWW+YNqv9ggdFmcA
+VcTkBnaFh0vVCboz0ZoHeFEYytu81GVOcB/Lr0oDPMYtzbQPbxHSvldba4j2o9IVP2xJduQnJc1q
+L1cik/tMy+VjV0/mbzQX9GfKrK9sr+nQ4xjPBk6G4lqfZ225yhojUTw9C+k2DZFp38LVlVngcA8v
+Qdw5NUFJMXvkdQPuEPuI4S35IcxrO/2iET7oPMd1J3bMqUwe0yyaafeYo5LsKnhJzE+PNdrKsrMW
+X5t72MMiW7IndF1W4RX4WUT89WYJrFJbOo8rEoyj56b502KgawQgPuLSGosww8PStS6tjKnsNPTH
+6WvMq3ySy4LIeErdpPKVjNjnD7EWYzdcVrXc0xKK7tp49efIR0s8KWrcf0fvwfEr+xACylzIqQ1i
+w2kNP1IkVAwjdLSLNuX8vcITIEAadgnQpekE24w0i8NZao30REKLAXMTyJH4JrYUsYlVd8wFKoR+
+yDt837gN7HBnTBQRnoFj6r4cOiW9MucxtDxnUicm/A44E/l5SUP16MyW+Ueadfy9JKTEvAS7v6gE
+KVHgwIEyHpYs769mQ62SK7Iz62qUql0ezKEcEt80C0g1ZA50a4QYRBMUg6bQgFkiNk9smtXLMPc8
+SK0n0X1B0fV9oiZA4qNUGBwsjgy/ZU4kZ9SUiw0NiKsjZdK1aL5ISZqyL+ipZ37ONNwe+aze3Ih+
+rH4xgNtMvkyaZR5RX/e/rCE3d6oW9/UNrXswrw5R5ExQqq3/3KFIfs9gq39yuq9PhrSgToQSRx9f
+zyKyt64mNQ+SQRq3HXQPGGJgsPgoDfME5DAYmT9rWJBjujk2r3ZaEQT7mG45N0lnN36aJS2fYrTZ
++p0jS8Mr49Z4cqEevca5mJ7U2nZ6r9DK6bXEIFoEaTwo9+QTCwyVmh9vO8U3w+ibp2yqVNcjVosU
+DRS8E5hjRkPSMkcywfLIKhdqt6Vl5jYGMLQacI+nzSXtxvFEPxmvpuiMb7pq9/eGQoHqtc7Q/tLU
+qCQfoQiSQQiseVHwgKR0Ya9/SUhJLT9PhraCs4JnNWafOsa0g4RkwdEv5IG7MP5pG6PZYS09Lzo+
+T3ViBQZMmCQIeYHCh5Zrc1ZD9oGfaHoCbRnPMPBzCWHLW2MyohU+sOE1jJS6Kh3anSBymXzCYCr/
+nU1DU8HCX/LbMifz3M1DJIG1gHeLwE0HY9pPKbB2PVlF7c92ZvBkISrRHSPYsSmya2f6ITM1e6Ug
+QMedFMryqIlZRbWi1OOjEc3pgzYPgqaRGEHhuD4q6cPXAJnOna66HbqwvikMTf/WlFT697SddMOv
+YV79mFHWvUTVXHxtrYwUGwZ4CicsCfWn2JwrFPhzot8owNzxsSqj+jUeqpWBSA2SeSM2bt2hV5kd
+7g29y32hzH0KnASY+GhZkFrSGJtLb6zL7s+A4OKHRQnKXOxE53zqJAlkE2Bc7q6ymETv1+0SfROd
+gEwkQXTWiRoxcIVZjbznpMB62ut7ZpBP+jjdFwwmk7QujfQVRh1FyNwNvyeYxYUXt+sublsjqY6L
+zMrnCkCYDe3mU+IrNAZUD+wgdj2aTrSiFiuLr+NOlrbfGFrDPTzyl/Z1bPQxoz1imuO5qsz50ShC
+iENtNHX3URtCsUhXor1nGGM8w0frlWdq8/xWN2l18+ZT5VY2XXSHnAbz3FCUxoUmOnrAzUpR4sCZ
+JgaRWdU7gU1T7YmmonxRo1Ezd7aa05cdmkTcwJksLR9dCY0r6jULVDoV9uwTZyFvkHqV93PPeJhA
+qZmcTuYOlBxwBFB5RDD2npVYl1Ogx7N6HBXgd2J4NL060gwfTbIY3pOl9D+FvoDyI4hPGDEjzJlC
+XRnjJxEmZniJJet4W9Y4xuw5CgQ2qHnclZXJHGQQ2KGOyNz1hn5TIS2uirlqrhSD2OLZXdRlQZcb
+9eIp1hzeorcYHgbN6X4ORmc0R4FnyJcyB4onc6tCYEnDfKWPNxL+7CY6VjoKe3qxSXVQxxpmz2Qo
+8guP2kJtsLU49mckV38S9g8r4N++b9XC+k8acW7tlGYoX9fwQJUG5oGPN5nEhR1OBbaG4KUvtTMK
+9A6xHpXcUIpDe4YexU3eIC6AHmOFN4udM81voREHFyFeqiFwwyqSpERGcrmYJR1sGcJTp4EB+2Nf
+K3N2kzGFHUVnXYwa26fRLzMTzAnPG7XKqaGs7EHtpvTXWC32jxg+OITMWFe/t0tNUWTmuO4YUwzb
+JtJUNIZRr4ak5dagf2cXpldQ8X9NYZvXvl5Ksj07IT+3F0fDEbLM1WOqSfhM0wLIScBO63iXOqTs
+3qBQiXopcB1kI3fULiDlxM4OpzvmMlmlor+WkOGIVjrXcFoO6jFua44EjX/3rtWkfifpQJdBOOrj
+S61xa7L5jPGnVjJqyEuz1PoytHC/vNKtkqdxBi6jJzWa12iwR3Y45Mp410Psa/CGkgbVvJ2BYliN
+UC/5cA1cjWxSHjN3iiCyrQTEymTa0GGoh4SAG5YvDSLS51Fvq5tSTSb9mOZS3ZfK1BkHgmud+XZX
+dbEBa4KWIKOA6Cfkw2VWgn+KFUmEU+d4NorS4Ti5ZgHeUCRWSwTSaPYyJAWhAz75wNuDnnGe+Ahh
+A4+pMy2Aj8G5zsaEaWatTnv8GlEZ3YNyyiybuTIN/FzaEnQruDfibjdIO9f3TAmipZ32evNcpdr4
+Zyy5g3DkAnEO0m6uv9quUPIriL7Jl5RoUfj2uFZVYMz8COgySeTZ5F7P+JAqX1AtAmPby5i+GrEx
+/gHjY9UmazM3oG+VO7eNUdAQZrrhQj2A/y2oa+mYzXd0cNL8EptV8g3SQdeRcA2yhzKTKHBGJqQs
+md9IGFjHiJZae4Wctr0eIJr3vkO7azkyHVEm8S1Y66Q9wrBYfpJ4DfDhJ9sI26cuypCC7BosuOwL
+BSj/FZfv8XmK9Kk/gMk7VeBSFcOx6BXcIamvaW5H9qK8uFiiYdvlWO5N3GduDBssdkiuq+prC4wP
+sUpN1J8K9IgyWJLMDHeQQ1yoUZSmRWC0cIRAutcDYPQzZoVa6Qy173CnWGTYNkwzkD73satq537p
+9VEFrFx4TBTK9QGm7Xi9DO1C+20hMgQAI/1DBGm6Bx8SWU1P08meEuwR9KCvqgbXH1iAJJlZMdMr
+bk1CTiMyin4HYoiAMtZ1HbwUJc6AGBS2DfgtNo6ZXOzwWNNbTjApIsH1K1UDMgSCK609tmMSbyas
+1Jw9nfuMu0nXgOYMaOR4xjUL5XLZDBqgla5EX0kex2EX46B6iZmMoMOilopCcdyyfcdJxVWhTos5
+9LKZ8A6OSMPnAldwimkIJzbcriUVr2amZeiHS2w0cVsdsiko9MH4HS8lMVBJmETjKXpBj9ZN4QB7
+PcH6ocnr/BvERF3uqOqnpyGKi/hCIfEG20ikfm9HGg5bk5DsyM4qOwFqKMT1SHLzWqeD8xW7YBfy
+EZOKwl3uLkg6F13rbhon0X7ElWabQZpO6sViRpW8bdyquR/n0lThbjgw2Ks1tS9CPWt8Q+1hhZGR
+KyivS6v9XsY5dW6KLShBHhJnGNAZN+4JB2BIaMyg5OplriiQ35T+jjC1DL6eZnAcZYqj0Vj/vQeM
+zh28Sq26a0IjODE8ovAZJUZ+nHFWnQIID8CD0Hzqlxl9XBvUEN7qS2amqP9FU+noB1Whx+fTJhBc
+JarF9EiCi+LsxKhTfuJ+3v0uIq0dSaiz6AmP3eF+jpuBG0Za0WvdzfN/kQ3Nbp81bvbT5ZJudhYH
+CySiTp0aC5rUhhc6k3L67HjAbiNWODeoGEj8KL2zX/Toy9dK2snoCazhn0Bx6dGMbTdfV9XovuL9
+ApsHxNisQQGWFMqyrji/87RYfibUVjyVyOG09YU9GH6apGa3wnnm4KuJnf9I8HZlaI9YkNsbdOpA
+PZNV09EOLmTRsloKyCeqysePgO0u23HWOk+1tdHkHBhKDMsojZqdI11o19wtjFNyImOJfADZ+oap
+Y+oc2KqlXplRybCBRIx5dSB/zL7XFVGZJA7qUa9JQj+Ex+IXdNP0Dl1rB88w0QplByM8vOuIT7FP
+mi8o05Kq/6rBFf8mwW4eTQscweB2vCqqXH9Ic90o7+t07LHacZNhPmrOMH1t47bFBnVpdGyAZN6F
+h7nS04de6i2dp3FGtDKrC91GchdMUxfNyZwdVZJi7RKjolyc2tpqAq3j1OyiLpmIj+7YlBelMWk9
+ctzRcFx6qybxwdQ7/jhGzvNLJotUfLzWKhwNUjGnP50K4sQBi4whvB6ocSB0MaX+YYI398egNOBT
+i9XMpYzotYdGDJ1shgEDvaFT859jM4WPIZn+b0yh1jbrPI0GgYAccIcUR39BDwLTo0Ae9FInExd5
+0wn3UOdjBsqKQqg4TvA7H6hVJEONU62FPm8iDhrFUgu/zVEiepmm5TkME5okQRgikyGPtO07etNk
+myaqgC9pA/0uSBgv6QAe9FxPkGv0J22uk5+TA7PXz3ObLBf1X1P7teqEd2VqwDMi8yfJBXaNs32l
+F9ZXpdAg8vSYhty1iugWv3bCfvSQv8FmkrZaPWZ2Mv9wekt8tQC01J0IF1UJYtcFnGAuVJT4WVOQ
+muaKXt4Lp3MemNxYvahKa0JYqqpI84mHtA+ZDFdeIUlTSnTNjf6KnzyET+i4xUWD8GrYCXzfO5/f
+oz6GaJ4vl2Ws4IjQQP3dZkn0otFNg1FbT0UCEssW8zS9UGaYgsPKu4TgBjkACvz3sJxjI4CRtADD
+2448wLDnb+pw6yruPdA3kmMo+V6v45O2i5rOvulSU5kI1bkw6f2l6XMjs+TRDTP3DtiQjssYhouy
+NrimynMsBWnLlBik+zOR7ZWkgVJDg2XpdRViBw9hVfjTimlV7Fu3To1ghgvhwvPq5ktjsQq8LtT1
+hknVOk92xhDTls1hdOg7UTj27Vp3mgSVfrloqzZq/LAf6O3h36RdtcNifIsyopiHwWXC9CHKkr3T
+SNIZzJub/0YEf1dJXXRaMDQqeHnioCrgTbMhfbOro9wblll5RoDIN55mLNGdZBGP+mRj1VLDu9Ro
+jZGiMUGn0hDeZKV732XhYnoU6zFJQygEB0LVlG9joi/fwmToBYTwtc+MGVz/aqStXvvLSB/GX5hA
+Ea6+gjOAGz2ju2KWkQJ9lrLam3VbXCMXa24cN4JwbIuCzD4y7I5BUa4cJyI98LzWzkC9y5SN4R6i
+qBEdc9G690oZ46LhuiD2X/RhBM0ADm+DkLDfIrHgrr/QUsNVvLZjjnJXNgq1aAfsvqNYLVNkiGlV
+3WuzgBYAZ6xFRBOq4F1o5PpdPcWzDBp1EobvLEig/Unt+9dBH5VxN/aNSPdu7Gacqdi1yLQgoC7Q
+56IoDQQtweT3FNGY2fWLIga/qBDAk5jNGZQLt9aSS/zH3OJ6HBLnzkyyvA70YcmRaVVw7G6R/ABq
+9+gUeBm1XvwWWSna/Rwv4RTMEy2rfRSTGAeCt9gEC0Gc3CIFpeLF5lIRdIW08CGpbXKJmtEXCkTP
+gSRk5qz+ycuJYeoJuo+HqptxeFnHAFwzEKF7hjNrAEJWrXVdm+DOvr7MEmqxI1O8GI1QwLwlcnkK
+QMqNCAWUl4lOKky8EVp2kKMf+l2Fcv5W5SK9NWClqythkN4x3VibQrSS/znhQPFHX5deId1DMq7U
+BLDp7Fz9QcY3dj4lSkkKOjTOrZB6LQ6h4Sw/ImVUr5GYDuoXxGT679EU+tqcyaFnMksouqAxHC/g
+o2p5i7hAF3D49T4GZmfAgQ8JiBNlT6l6HzP0IPMrQ+WDDapqPvZtA6xc9xbwbqa27sWsRN14GPne
+Xxdu8Olo0M24SOme3Hf6QA8Jj7P+CkIEt2QF++SG7IDrIlfbavCWlibGwUnqhgaWhprgKz3JnBSk
+GjT4UmXm3FtFBRmW6ya6rXOYxN7AW/4OQ324XQs9qDhqjh5MUar2Dp1k+CuTdJD9QZ+oMIzJyaGJ
+MFLlxY1nDnMk49mGn5XTrihSjHV3uOEZv3KabTjDajJ+jI2yo/JV3foFnyErp8lW5r8iUTewIMKM
+lhJq7lzCSS/lo6hgABBk4V8YJp7HXtIykDzgFM8/3NlaBvJ4HS7ISKvWhIVD2ghP2sgfjAQtgw8K
+Zf00nca+5w5q9X0VRuDcbN1mp3ZRQ4rfSF36a3Se91pKc2eXTh1tbNNZIEbGTnG7clDnIJ7q6ZrM
+pWytYwSiPe9iQzg11nK1ct0O3JrHrKr0C4eeiOY5GMxTwleTFLctYsDfTagut1bi5J03Qqzoj91C
+/+0O7VmIt6liV7yb2DCrHVO8Ovtq6axcPlEXKE+KS2MUGEiq8POtlCy3G6V4ycvFUMkBKY9+uVE6
+KB7lFxzFUCCaOsga1vh3m4mhLpCLW5oECZ3WGDzbiCY8BKBk/ga7dGDehot0aa9LtDxe1c/Mof1Y
+cb16CfxrbsDwAKw/sWtQMTmjC7kRd+diNt0a4g+AsKH9UPoq9Pqs7g92Nk53ipJj9qqEEZ+u64M8
+68Xh4+W3gu91eea0Isd3sLEFBXurtUbD2nTQVgoP6RXlUA6VuT+qsAR11J3yFozC9RbTiL40Uw4t
++OPFt1PFGC7H6pqqgjrq1uqf8nZ15oRZJtBd6WUhV+6uESEHqWAk4C6jqkigNdFFi1Bmg58nVFRo
+RHdZCduEJIaGd211z2d+0VZ7vv1FG4sVCM9h3RR8jqgyiMNAmEEauZpPqvRUkwoTeMDCG9Rou7wb
+Tfy9nPlQlnQAtDGCGj7TcoBP4p55U1sLgL8/iwGGq+ut0N85i9UTEbo3KInLIqLdinYugtiR043M
+2sqqgo/fwtYbYl1tdfiwV3dTODEbmxQ5GiUj3mGCQAd2fhqJrUOPQy5FWjiZ00+G/GpnTHRObUMs
+94RlrntQmBvrCwiSbZW14PDIAbU7C5oJaa6Ai9up0wXsOfcgS7TblW59bvzDOt7QgmlsrTuQ9cVm
+BzoVCkT4L8B9GOEhuaL9m8hvhcFdcEEnCGj741f7/kHfrrfZX7OlIEyREuFhqY6rqep8PbPuF/gY
+Olzxugtqp64fXDOP9h+v/H5nszLmMyamxjbzqNZf9o/lUzublUgMdjYTktTLCG4rF6+sPunV8vd9
+MiSQbYMigybO21VYOtHdmhOtj6K7NFfqm1OIS0D58asN3/rMvnl/LnDfJnyAHgMI8jXfLucYbugW
+Cju16bjNOlrDPh3H74hrxPHj1/f+TBj4bNhMIgfuwd93fb3/vD6kXE0zJdwNYa3VF2QwaLGQDyc+
+BE9UyQ3t3DMj10+uqGPEhAIeacLWvVBQYddFz5mXsTL+CmcaXW6Xrp3EJs7ucGt0zviMnNohjE5w
+EEI42D9t3cVHJkIYILdE46anXnEX2cpA2u1Q/j+2IiOI8IQXhsFX27zLBDI5GQXvcqntGq5z58I5
+muozq5x6f9iVC8hTTEGBE//2i402PN0sZpUOhoCFtNBdjmmsNbuJHisIPr2wj7fIqc3oqi7sAdIy
+otnmhFlVY0azs24RMbj3Y4kxiD9Fka3s+pyk5kwk2ZoUrSfN1W2Vt2jgGrEdU1K5fU4OjPK4EVHx
+mgDowQ/NoK4s8sppy3UcsdINTx8/4onwxcWACZkgVjLlWXv7TpfQWXQTkqiHpwCKTmGHh3am36oX
+6b7OQ4cuhG4cDB3C45nHPfE1MYEFbcaTieBibBKVQUuq2Kk56W3YOy8awuuUu1gMR4aV9fsIffTu
+40c9cRrWhIzRLLrgStqGlnZ0Ozh2OVgW9NDAxNly3yv6uYnkJ76ireHoZglcirB+3jwWdjVRWq5n
+LtQyMcF6z9r0oLetUPeiW2sJ0SKJikWfumee7+TKXARI2BgWiF/6208ZwvufuoIZCVU2qM+orTL6
+O1mY3M5MxvhJaIfrOqLkDM8E0hOnhOVUkgu8rqG3rb/rn0DaoHi3EZjyXjM5XbalOuwwglXuXRoo
+ZwLaiUfE/U9nfgknZZ0U/napOle1ZTQLHhHpX6A0MMsms0F3m4Af3UtYys+ZcM/ZFZ94QHe1hmd8
+kEkDRd18UvTSWDAPnJGEbxeoDWwklC3hIVIRKXx6j7pQPlyGbDD1Bg/Mtw+YojmnncQDhvgBBW4H
+jWmszXN2b+9PwjpwQWXGqonhm7V1BFQHhyEeNWNgFPwDbrMxg84Xp8OZTOzEKqs1Hv8QPHHQ30TP
+HrlKUZouWLQNRVSK0oSsE1tndv2JVRhniLU8FoqaivnZ2zc2qfEwkb3DsYAzUtw2eOtUQdUoXXxm
+m59aiIQSM3uVO46d8HYhACUjKmmfesuIMWlSaI0PX/GM4fD7oPh3oih2WUyHJ/vZPI1GvjJOJT1O
+Hje7JHYm8y5poX/ICdH/DoG1nF8+u+Xw4mVWIwx1c52ssgkbCaxu2gckzLouqdhiR+7lPE3Bx6uc
+eDDbISwaKnebRZn39u2N2LdGTVZTibs1iGEe21fMkmn3jt3Hvpyic7N5Tq9HBcAcU9K7rSn+oKm9
+bdPWgYGgtMB/TBMFXA0jhDapmlb3/dTovz5+xBMbhEdkihmXDJb/7ypv7PERrfAi57hMEO5WgAtV
+t3x+v2PJQ1/M1Neo6258ht3WQuKO5sDrczW8cyb0Tm2azWeGV75PC+hEmdwkNlclivjN2Q2tGLep
+1T1TZ7IdRG1MWRDNjF9h7LsHd3SQ4GbRBILXdsXh49d44suRbWEXaDKqUNBKebtThkRN6pp5JV5l
+GdEzCiDzGWWe0e7zCtcOz8pgFO0/XvL9tcJcCl7lCuRweW7v7HjUSndkiLYX6uVyMCFl/cgVAMkr
+RaM6vwsR8AqvqmPauR8vfGLLOLh6OhxAh/O3tZpl7CX5K3aD3hB3yk1qGoXXSjl+Oo3l8VxsLzX0
+Vjh+b+6vSk5I+R14X27ulAdkjSEeb0ppcxTyvDDPbNBTW4ermWbg+kbhzL39fr3ORCxoqpSlzpQc
+sPaCWpcnCqb0oZ1eY0c4X5v07A46ufXj51+nzWtk2IjD9jHXrfVPJmIntK4jy4T8D5fpTmD5tKuw
+VDxTop7aoLZGSUwKaVKpblJmLJ+kjuE8xGQrs70WvsIPfcLUE/ptfUQm0h4/fqr36QdxmUoan1uq
+HkL126dacFOpUAii7iliE2qkEQFJWqCzUL0wyjqzJU8+HZX+moHwX2dT7+NOBTUUlwZcXEJ0BEwH
+BjRpK3fKj1lhqu3DgvrnXDfsxKLroBRqH94o9/jmdlg0qMpyQWszM7UNnAoZ1wwXvsLbJiqK4NPv
+E2oCdqXUqlwN+ibAFGOG0hZrHWRRHQIjP1mmOn9G/2XXEyrxedTOVXZ/Z6O87QmvY1OorhzeKynE
+5hNOhRtHFvCE53L2il0ydOr1OOEi5iZdeQwd4COR1O0hhh3JHEAFiMqLZhtQsMAn78z+PRF0XMxP
+iOu6RYDf5pjxCDuTCVEV/Jom2jFMFxpfhFv8x2/59DP/s8y6rf85jKnV5YMaMgEnXJbJ8pp+Ndhi
+XKRh+oXudrfsZuVCHcHYnBzXWpkDR2Ne7jCZJ1XPzKo6tb/44v8brkB42BzZCkO50DZ45Aj+uG/A
+WP2jN3UGLUyNLoeWOu3jhz/1immAc6Fwfa6D3d4+u2EtzKfAmtGzTb3Gew0VkT0X45mnOhEYSNuA
+QzDI1/mW61P/84ZhBxv51FMsYKNXv4RpBJZYa9Erw7fP5QMnH4jCa3Uph9+rbl4gDsmQBARZR8Mg
+8SBsYAUC1sRnso6TqyAsIfDQ/yCIv30gtE2h1BidyqjgKHH2WBUZfUC5hQr64+9z6s0xwof7leY7
+DYhNLt+Q4TsIW1lI6dS9Ajs9sKvBvpeohr/+f5bC/Nlds2vmgL99pqKd2s5V+Ehy6uStE3YxKKcD
+lRdG0Zh++38sxsQr2nDk2WJbimNpE+MQTdY7AMLs+75j+CUs8WDo8mL/8VKnvhV5Grcglsxc85vn
+gsdkWG1B+0bXzeIeOwvnxnIG50ysWv8v28CJUbK9toi4IbZ+zGU+WHOysO/KFu6k18MXvSA4jk8x
+Xaq97FH8fPxYp3YGDT9oijCWwLE215/eIRwvLOAzPLVKP12QyDUpg8JI7uMzH+v9s9EyMdgUXHy0
+M7bPNhrCzVt41auiujnEYX1fOc0ldDnrqDbJcObBTqzm4L3MCAXmvqyUs7f7cOx1hYnjQOzmqFiX
+UeEqj4x3Qr4j+uUOm77wTNL5fn/QXRcMzyGP0FC7bs5yolqQ9pUKYTs4+4sUy0zfTRsfPv5cJ1dh
+0iHHmH4GuOfbp1KUwZoWHJpgteHCagxRcwON89xcpRPvbs2FAFuoEGg8r3/+T6ClZY9CyoFbXw7z
+cCdEuNImUP5eGsVofdfqMP/v04/FFqTTpOFYD8qzeSzdypskiqkLcBkjYy+030lpf3JONd0FigKD
+sERA5/LY5pWaguFEuQzUeJWOk26LfwwdZqP0oWMgUlP5ZmdO8/uvRVw3GcFJYUmKuQUF60Giwhlc
+OH153V/ZSxpeq/2oj5+O7sgqVJvp5TbRXXM20d0p4PxAAslwx+iqXZEVf5aVbtZY6blRWO8eyNIF
+ZbitUidrTDDfHCrcfhulVxEjinpOXopKkbusiz/do2cV6lPSiXVgAg/0dvtBBoXxbWM53GSjXntZ
+6WCHM85jpl8PvYS6l7YuRDq08hx+3C7rs1jZqedcwwZlOREE1PHtL8gpd1bRLwymJocvkzR6fGUk
+ZvHZ+5/rZJ2zxcXMzUxofLuMikV8b6y9PKRhTuDq458SovHx47O15tpvrhTanuvIkBUPd9d/3y7S
+JGXbdK31o0cnLCvl3kqOhWrvK6F5TL0hwUH4xcyGM3vyXYthXRXBEb1dYzUN2nxD+IQ49k7Wj6m/
+dGPnqhh2WhX6uZUGy/L88QNul6KBrIJAMCiHtisq6E3wSPCWWKCHogy2pugGx5PQ78di+KLgub5z
+ihBCGbdp8PGi2x3yd1FwfnBNjRRj299LcR4yx2qKPTw8sns0AvlucWbnzCrb2/l/qzjkvLq+Dtfb
+nDeA6AhLYB4tRuo0QixR1n4sTko+2vJzpIkTi60DQ9CigXozJmMT9ZuqYlSZuTIS45C1Ruk8cKFx
+Y05d+MmNz3O9WWqz8U0rDO2lZin0iSNChiI8YLDy2ZRtXYX2D/MxaK4RSTZxse9FDPseh0aCjHkY
+QY4B3BZ7/9mdAEKLEoI4RcuJJsnb84XqYElNC4FimEhJFdvGuCzmn428wD9vVtmcYgoSfAEmikdM
+QUMP76wXNRMvHz/J+w1AOwJ7VgdrF5pK9uarTLnSadGCnRqDi6zfYsLTIUeku3pL2OfGJf3duv+G
+JRIMFqNFAGQCyLSdUjfik2DMA1AWSDpOMuSMCoJtu71qlKK+gYBb7Tur748YwGr+lKTaBU65+ZnY
++O4UUyMz90TA4HJWHefmiYsal/Uitp/dBBVAjdWiP1nZuWzq5CKwPHinwDaWul0E6xeshKOXbK4L
+d6fXunlZMq/OPXzq662sGINCCByFhZiBsokVfZ5PbmxNo8dAvBj2snS+4Z2CjNRI4zM13uaJ/rcU
+WS7jWsGxGWn4dsvroZ1kJcmtZxUIwFseMOhzRXwuSPxdBfzn78MwBnPLRliqCiupMkZtEzOKo0EV
+faWryznUbkvh+98yQAzrAD7KVXPz3vDOGQDRFKj0g9kc06mer3CS62/MPjIPMQUz6q7JRIyJhmvM
+GKSCWLqPLky8W3w+6bmDvjmEf3+OBR6wHkES4nf9SKfUsNHDLqKap9xrjSz/MmFpsE/Qt50Zyv2X
+G/bPGfy7FlQ5jY0DgE9u/PY7GkaB/fPMd4zT5rFH4IN9ln5YwuyIbfHRrJoffTL+6AUjdIzwa2n2
+zxMw9EzWV3fZBd705/oUa6zc/CAucocL3dWg0m0ZQ8gsUOY62OSronH1PwUesNll2QJ13uGfWWb7
+LFkK7QFfuOTXkuBIfYaxdOLlr6NsVehKkCYw4Hv7QsJm0XosQAcPehg+vlZVBXCIZVDHaR58fFxP
+nKE3S60/5Z8aqxazFs/rtos7S7nI2BBXJKP9508qq7icUdhs6134dpUGaWtY5pyhfoniveZOyl5q
++E39P56FskqAA4JEWJt95DJpIcd+jX1UpekPlNHtjTIo1sPHq5zaHNA9OBL0RwBwN1EH1kUkhwJl
+dZaI9MDY1thGFSKiXWRE3ZUqcXbQeikv9SEdvn1+ae4omGUQPt4fFOTVpRgL5IU6zbnrSZjjK7MR
+lAvk3uZdgbMc9mmWdUfsP8cPfL9NIM9Tb0FZIpkmJLz9gMoIvqM0KR4ejlFfp1lZHWO3PQe5vH+1
+DjAgn051VAq8bb8+VuvBUmUxe0jzHlTLfB0M5zFcrMsBFxd8W7ujbTSf47YQfOhIajgG0GbVoOlu
+rkU0SCNldzmjPsWw4NmVmIMfpdATy8dmVsb4NrYRIAw2nenTx59z3Slvw4wjuLcgNQC/wKvZLA2D
+BkFZxtKOBSlbn8J0V8m43jHvCMFD15zrPJx4vaxnAIXAS4bAutm5s1hCI9LwxMEIOfOnsrKObtEr
+wSQzeUTw+YjhnzziSXxuDuD7eLbignCVoJeye7Yd85iZgwik8VnE2EjxM7VSgsxo3b3EZ+tMPDu5
+FHU7YlA8Dbm1325U7IRGu1Dwyilz8Hk/xuMgu03kgE9atxp+fPwF3x0LRu9BqrAMdu2K2W8ubWVC
+Qu2YCDHMCQsPpcHmSmbMT/t4lXf7ZCWsswQBFLIixeXbZ3JDeGcLVlT45RVOu5vHOC2D3IrN30jE
+HCzRZHpu3PC717hZcvMa9RwdoMNgAx/FpwyEkf1JbdEFRZ0PZx7u3Sv8y8aH6kCCBX5tba6G/2Pv
+zJbrxs4s/SoZeQ8V5qGj7IgGcA7nSZwk3iBIicI8b2ADeJ2+7qeoF+sPTNkmDzNJKzOrwh3h8I2V
+EokDnI09/P9a60uWOVFJRiJSdG6HAyJLygCLUPXOsHh9FUobdOPpdbKqEuH+8hESLjpmTotZ2ct7
+a9Mm40Jwk728s/ddf8vzF5rtCy8WrxaDXHcJJH15FQxaGugnFC9DFKkfJ2+EnRQPB7PhjD4counj
+WL/XIXp1SZ4YZ5dVvb2Kt3ePfYXmGJPR46dI+04LJ2LMrcCrhXKuEbB05rlija2bxebtEbl+/S9u
+lLMZO7VVfshF0Vy+vNFiksOo5vCgxDb1h0Bu6j3jRA+Tdy6z28xkznh5nZ1lhw3jYLcF12nCu5sq
+BMHhfz08v3/7Zp6OJG/djfHybia7TzAAchV9D2GBD9Jjo52S9hKCQQmsDd03/6jzD0nR9+fbt6+9
+e/58dYfrwH22/+IEXZjdStZS9s1ABmjh/S/OiXP4o0vr7pNcX/hn15mKiliIiuuYF9Fei7v+Bl3z
+YfTOF7a7wuxeZWeFwZWfFcp6N8sWREhAfmBQBc077/Kro9LuVdZ34tm9GGmnmdn6fZ20m4c8uHq0
+9u5vLt8DaD4xft8aFjvTLnrmYtZSLtNukJ8GxBD4N2Runi2Bc02M58E7I2Edy29dbmfK9QBXMn1w
+ORk8kP3qf6n8w2/B5c07l/mVCeP5q7t7Pi/7qndIBF3viiCsgHpRADoocEM7vN/73IfXRAa994W9
+M13s+qCEazResl5zDDnb8YKlm9vF/3J9mvjnfXjPscAnc/OdheW9729XY2+Q1aEX6/c3Bw/LVt0D
+jLXpt8lpehD5xd7gv/Ng17X+je9P35lFchMrJS7D9SaToOR/pk/wZ0BG2zuPc31V37rQzpRhKhCJ
+EpqXvlaR8D1GOCLqbjgcc+e9e3pvrOxMGq6T9W61vmiu9WmI9lMikxsd5lmVk0jyXs/5qdT21n3t
+TB6Zq+gWuWO/PMDiDFxD6GxBwQXXaZiG3/DeMxGr/rf37vJp+/nWhXfmExmXIAVaLmxc6of9TX3a
+HhoP0TkVR9K3m/v5qjpMz4xz6+qdEfPe492ZYGIxpXa9jhiDMUMAA+Nz3GeXF0S+EzSbahOHbuAG
+70m3X9VbduZPfWemmfUqL/r1xaAHuU33tfCqDBb/MfIbHm+91f131/FfmwDoCSLmX01z+Gxezth9
+7paVug5ZWMQbjffDCD12DmbgHZUBJL+L/pxg671uzzz2Dt55yr82rz6/9s5TJlZmLuiRsFcJ5ca+
+KbbJVm7nMN/2B/r+e2WzX/tKaSnQt0BXR19850CQkVedzV3T+x0h8KqGCZeUKnN+HKouzJaLt29t
+dyJg20/pk3qHYSD2R7fw8qnaItWjpDCXQDGEsSUmiXBlrUtBrc3LO3POOqc8f0W4FApPev1YkVyH
+eKyXlypc3Z70EYBWhFn9qPaqCl2wUbwzh+4+vfUqJk0sTgOraXa3tGICqwYLSeqRwJx7Rvakc9iN
+RR+os16eZU1ZXuNo0s5/+ClSxOFYxaadPqi9jp9nu4mavISub0A2wp1sNsSzMqeaorwgtb54byzu
+nuS4Qc5w1G4Q5Fu4sHbeA6A83eI5yhw41Vh5AREY/TUZcEQpdVZt5FeFNgpyX0uH+FqK273iE5FY
+nhfZHN1YohI1OQLjOB60pa1fIChpQQ11aeP6jQo+6e3n8mrzTduV9pitUW1CGkb76uWDMWFpVMJx
+YFlq4wh6RCnimdmQ6NoknHpwr6RBW+OUbQGdjvcdzccvce/FbqjRIFy2WWPY7xndd/eX60cyGB90
+uEh8BWf08iMpZDWlwOKnANJCTt6wofswKcrP1P7JJJDN6B7Ojc6ym47TO1vb1y+bwZeGQo2SMEV6
+Y2d1ItBVkTMukaAT7l2LfuNakEF0RvDme0LRX7nS6qix6cRTVUDO8/Im434l33n6QqpeZqOmwPMU
+1nNGaCitqse3v+TX7zVVTMpepAfg2VB3u/Kxo05lTaJV4JCIsxHdBOepjd/poLw65PC1Ya40UGXS
+Q2YJWO/42SsW058wsmUYg0hJIn8CLOpnZWz4DKjyMB2WeuMUUbHR1cw8oaFfPFrlrL0zg71+9fgM
+SG9W1xJKs91i27yMMq5b3i6XSGd7E9eRcmnmKrJATxCJc0CKMYkuP/x013kMow9qH41i/cv7Lq2k
+NOoiwm/f1wThzGa+LUvH2P/xq6BvXvsFyA4wzL68SixH2lNzNpL2AtaTQCTChmFq//DzM1WDG9Eo
+rNGufPqOn32H+WzkjkAbEqSyqU4Ks9fCVCGERhIiGpbDFG1/9K5W2QaiSpogjBxzZ8zos9oXIGmJ
+iV/S+DCrleUgAs3yziHh9YTi6hbWTW6Krtsr3SHmX7p6s9sHYGKrUFWJwSnIat9XXUtBtGFJAmKn
+fjyIlP67Kus/vkz/K36sz39ZPfu//id//lKT+bQqx3b++NeT9EvHd/9N/Of6Y3//Zy9/6K9n42Mn
+hu7xp5P7pv9pO1Rf70VaV7s/8+JXcKXvnyS8F/cv/rCpRCrmi+Gxmz8+9kMhni7HZ17/5T/7lz89
+Pv2Wq7l5/MvP919Lnk7aiy79In7+/lcHX//yMwUxnvh/PL/A9789vS/5wf9d3Mf1ff/6Rx7ve/GX
+nxXD+rDWqlcpAPZ21IwUmuTjL3/lftAN9ghcAQuijcz/55+quhMJP+Z+oPvDdEZ1Cn81dT/WWd6w
+p7/T1A8mEp1Vv01WDPOR+/PfPt6L7+wf3+FP1VCe1yn4Mm7oqcT7bGfEysicss4r+Ect5G8773gX
+K4Tzx9A/HWlZyTm7tVluSDQd7oGcWsypozvpp0Q55ZqPZZbuLbANHfbqtNhkZM9V7xKP0qWEPTso
+zFRgYrp4nPO+uLQr+n2Xyeimd9S1VWWr4Pi/hJowfYzJTi5IXcuIXiqbJj8ivxFrjFHUxIiDdTCd
+TdfXRbanEm1HFqsd15gahPlxmAeH4D0ySBnk7dint16pNc62SlQQhoTqUz/UTUU1QhMUfUpEsQPB
+1YCXKUD33swj69Amtgktv8JEUX50sojUZalk8ZEYSdvwFa0YLyhjiyKgdezoB4TtdNWplQM/8dlu
+ON/apJ0gtGpeeYxVotdgEOvyc0OQUr6vNnNEPjqo5tnXux6xUYVs42RcgAErWpfEhOLPbbXROxjI
+WzK+vMsERdyaWI11HkllCguLLJ52CZrBNtOwasb8dmp6t9hfBlPqWxlJTq9NmRe+A5ybYFUaWQj6
+Rn0OTIgnn8lRE9o2hYdAGTDWVGIGh8qowqQh0DDMXC8/HUkAvGPdMsaQdCFTwfpdJ8eDsnJRyOWb
+7KAluerSEvDSN5Ul0GfVYhw54uhN+21wiXRjB2ii85Al5I4toWZxfw1XmIVJ2mp20nVmlvn4OIYh
+hKwAkJQwk+KBQPfic63HzWWM2Oi+hIngwoNturOW7gGay3r9BIlWN8Z+5DXeaUt3l/4Ov8HcgKaf
+vJOB2hkYLARW3wxaFd8Sb1IV32277KIa+8HatqPSdwEZuHl+IjW1t7ZkYfJbh6LPB5KoiW6HogVo
+3BdEeR6W4FLKTV1ZDoiNylUusfSlbJIsKT+5nlzmA1FDtQ9LN2Z5ZSeg5+BySqDLpU2sAsATt1oO
+J7mM7X5BHXYh6cFUbgtHG7qgR+PZBilyTwLdZJdeLE4nN0tMYrpfAWX86mSjzW4Papx+pHfapIIu
+Q4LvM51YVwLtJkll0OTQKRNPA8OurUmrs51s2Ki8DYSUJ5ZR7HNmFUDPAAxT31DqdgiKQQFIL/s1
+l2+yht7bT7WutPbsNnapm7ZWfivo2QEBTV0SngDKktf2bCL8PtM8n1l2doHMK6sw6R8qqJ395n+v
+CmpdJp8t7n9IBfXvBfHZgsj3uYZz/faK+DGtf9qjGfn18aev9U+XQ/F8bfz+098XR9P7QEMLBQKS
+B9JAGC9/Xxwt5wOnB2/d6NJWo0zwbHHUnQ+oKvk5zp803HBN/2NxNIwPiDNYF1WsEYg12CX/wOLI
+pRg3zxdHlmUURJ7D3p+Fj1Dgl+OKvyRpDXkxWc/IEkBtnxmDhDeEU9SgOHsOIpOEcBL/zR4bGtm1
+S+H5s9v1ZOKqbqnSShUQ6bpL3QOI4RNfj6UNuFrc3RNfqHTnS9Srec/+ky5jsllKY07u05w6hnkg
+AbcoN26vwhIOrNGS6YkKoscq9kmdLSSLUdGNGemIytgrXysQo5EbWDrRDCDiHauK7mRVLRDQwIJ1
+R6qMiMczSe4FiVypA+XdLgblYVbw608sCoinJoqTLnSqGKAUORISIEcbjWHfefzG1BPdsZsNACpU
+MArnRWnIb0uJgjwwhJveEurHpLbgdtDIqas9N+Cwph52qiEiSPJOfDZj+838HPzTF5XGc7stsyTH
+/lqk3mVKL/8mqrvuJo1EfQl7swYJRrbkAZUafiomavgys7X2zKELesJT55CcqeBVB63LI2L5uuou
+y7v6OiIBXQlK6JsPxsJJGJpsl3wTQnQk45NXu4KG1nYjFliAKrCfSOcFCz2tZKX0PjUSk5xMR42+
+tkbVXSyq0dibwp2VYQNSrMS/MaXNuRuvCJl2kvpIUp4ZHeeu9HTsyvV8A0I3J1TSI5wgUOxscNbc
+5zw5UlJcYty+bgAU9UZCCx1AnASE6noIvl27zMjtd7fWpOq3jZZ71/VUJ8HUFfYK0hntY3VG4OEn
+0zQczfYsCKeNSXoMnE50lzam0IpwTCU7gyMbH6t9x86DTRysgba7nb0hPY7ANANStwtCxE1xkmZI
+QtjLjbj1k4L9jq8Igqf9prDcMtCweB9jG2B/AaWKGqCwy7gIgEQoX+KudD/WdQRxthsS9bxK5+Wi
+8hBZb1o5iXFfgXH1FbOadl2qQw3TIoXh4vcOYy9gPwvAChizdUIKJvgvvdagV4+tvIEU3n9W2twi
+NXuytE8oyNgStfwGCdJvwjSNFqU5GEajQG8Pf/PSls585pjlfNwjb+3Yu+XlZSo8HdykKFPHN2sn
+a3211NhhlVSMWxAS+fJIAAc2jzhXlbvBEeMtQZXY3J1+yK8qgk8uayLU2RDndnQCrKq2fVUqOq2Q
+pCqJTIZJwFa4Kvut1jltR0gk9Cuf9bX4aANMetB7Ycxh1mvOGd7H5XOkxgVqcOCGV0DjjAuJBVJj
+41Xop1bmqJRFiKCHIzPr8ItTXY8f3CXrvyB1Mc/BgbOTrBWFaGTRqjVSxlYSPKg3drSvK/p8XYJX
+uuq1scQri6vzU5uRdYmUo8tvs8iciqCKpvm+B9rSbshfN7+M7oDTD+oev9glevyQs78Ed6QZPGeP
+C34ucYN+8txILhvhLNrpsFjkZLUoSYNUcfGCGS5EFDjgLamIMXdzqJhTxxhB/UAJrddxfidQAoNu
+sqFoJoRfQxBXU/lgywTIatS3k+PXRMVWIZt/NiCqA5uS5+jegTTyPoG5EkxcSi6mjYib6caOpX6F
+/T/qQ2XKmtOyqCp42W2VMmyHrJ02HaqcIgCfzPvb8E8+YrMtp7DB2nheZl0xhF7R2UrYld0q/Dbn
+DJh0rzjfpqKrpz1O2B6UYa2RY5CYIgW39+8g6vBfMYjaqJDLZo1omJme0qgNgqT2K7W/ekqkRk/c
++mMFgPK3YqnbLK4AX47C0P/8WOoF4EQTjHNh+6+yqRvgQVbAck5O529kU7PYx0S8TixnL7Kpm5TD
+md82bna39ATjnv3PxVTDFDGT0Bl6U179K2VVdxaLXWOtFYf/D7OqFU6m1/CDiOF5CqwmyQIqV2XM
+EvidUXSw3JPx4v3Y6rlFdRnmtpLc/pJd3faDE1/IUbRfqTbJS73qxwaK079wivVkS0LqSbGxSCTf
+jbGOJ6MbQh0e/LcfirFuqr46T+fKPY/UPiPv/Z8MtHaKVl02C1RHylW4Z7ywWmr3qCwJE0+3co6n
+W89YonI76QYu8gRF2/dwawn0td/EvRoVwLLjX0u3zhenhvcB+/Hkl3TrTrf7A5lokuCnWhqflhwU
+bfAi7drJzL15sRI9KKlB9FuLrHnYL20uz+fZNOU2G5dlCFiF/4QMbDvN15KMVosqu5TPk7DBw8XX
+g8MVXyRhp8BvM3a71i8ZFf8+Sz87S2s04zi7/vZZetM3//V/u1RwjkbdWz8/SX//2e8naZ2C8RpZ
+9qQ2JJJ2dQ58LzOb2gciHZ/awxyYaTn+o8qsOR/IsyQvEF3uWk1eS79/qzLr2gd68tjJ7NX6R9v8
+hw7SCDpfHqTJc3FRbdgu+YEmvcG12P28QFN0RjlGniwD2A2uQ3z9bN+nyiD6PdJtZbdNPTaC8CbM
+XA+wQMCN1YzW8iWt5SZAerWSBex4yPZmejhAMV07Nil3zsA+IKqd1cIxcbtghDvL2Ms7WzzJ4rFp
+83J1GCXiSCwQ1Xw+wCwImy10ao3keMx7ZqF05Sc3q5p7kaRsVglwMiT0mqQ+mCPCGzYzfI+LHoBB
+HAxxHz9UBumEftX0aRwY3ahQy1WX/hYQgjsd4caU14TDwCxzFTvu/WgiM3s79Ol8rzhE6GwI0+M8
+URaePpOyOSkUnGuomftWYY2wF8ih0vap3BL8scgu011/Ks0kPxlk1sV7LWno+qUOZDPOQd2SBX61
+qvujIBGdc1qhivf2HCvyxN1UAnxFm5OVW4VGOGx1osk1DYAJUUFdKJXJm/cyVZ270JV58pkTqnlZ
+Sn6jn86KkQVyNopyI7SpO1rK3LpcKs/NAg1YMbn0GT4OKo0W+UOpMJxPUaHQuYtw+e4RZlVfqu5S
+fLKxJiz8nsL7bOtp8bDMTjUT4k/LcmPN3TwSfc1DpbPQmOH6BRJonKSSfKxsjNaY3sE8N/se7I6I
+lkdiSe17z871+y6JisXHu5Q0W1H3s8qZeHxCvHpQMGA3jXeI2mMjtFOzTwJX7V1xlTZWfCBbrc7O
+QK3rX7GmR04oTWPoNqnQGy9shS2RHhtdgvKT2AZxWoyWLsielKa7nZJ+/JzoDcdGfYBPt6Je0wtQ
+wiRc9zN5mP6sCOVGLHMKLZaaPegZGbunDufUyW87Gu/+XDnVkV6MThnYbQQFvGqFBL0kHVoZpaHd
+RVkqE2o0gocQd0WXMTYYHEBsmpp+gNBLE0NAymGt6efswsiyjq/BrWEo9SrE0tClw0Vec+NxTmys
+3Mu2fZWq6rZIBKVhLxf8F6OtYtAcQ9cEcVwpEeh5LVuJqzFjEUR1Bj3drgfbn9pB9fwCpiJ23Ck3
+RUitBYodlE3rs21WarYHzy8H45GQJ0T1YUya+KC2x8XzjVYMVMIXKdPNXMvxmxyGGsrJ0mm3nHn5
+LXS2rG9Nj+B9k1lYq4DsjMV9gyw9IoWmYnzh7BLnNVF3FLWHRD9RkIg4vkzipfMp5Cw1oMDFs32e
+pHsaeRS1NnFh1iRgYUj7Gs9DnYaWWmmXTmvkl9TRmlB0c/Igem/Rjs3ac25a8D42HQ9Lzjxq0T8M
+bdPdZ5HdguYbXfvW670GBDzcRcbanKPRACmsGaFlV+lD26sF9QlAmEg009rxQo/XACv7EmXXWtuI
+w8WtmcSeLQG/Ulff1Rit4rfnCq11pn1W6v5zFVqkD71wbuxM23/ARvFKFL17qR1p0a5JxHNmb5MU
+Rrlp4RRW8Oywi3gtCgTh5NUBhSdYJrHTgFroHfcmo6G6eftB79R+WfS49zXD8ruxY+dB/05jx698
+nS/8D7vCtD/H//COVvWVH+7PUTT/yr0+k26TE/hy6P4xOS4bm+el+x1jwi+l/WfvyR9QGWvv3df6
+UZ5d6k+RpK9KsWediVe3t/Nm/n619jsy9Fdho3/URrAOgrdubKfl8kdV77sb03U6/YcTCF3Vy+/u
+d7oW1g/92zeFsOPlVf57fCXqjqvpd/pK3ruXnXnxdzpxXmnuXn4xrwAiv9tY9CRpfuu7WdeBZ2/v
+n+qeenuSwrP/8tp/gpL97bmKdKiXV/zTNPvr2HvrKa+f69lTdn6XE+49J8Rudvyf5oRYZ4m37m5n
+FvnTrB/vXHdX1Pi7fYy/dp3nHoSd+/uf9D/saqb/Kf/Dv+tOz+pORD+sDrbfrjtd/tf/qX86vx+K
+FyWn7z/2N/GG+eGJQEa8m4Go/XnJyTI+kA+MQnkNEUN8v8Yg/E3ZqHkfUJCQJ7emLpJeucrQ/15z
+sqg5oY5f85+Ic15zuH9AvIGB+OVLaSIHJ42epGKyxdbgtp1BO5pGbg+pl4QVJgQ36GzIlhs56fZj
+Pg/utZBGfgfmrZeBRYHpXOsXNHWxofVT4LiZ/OJm02AeeWOcY4NW8vikcvrkLm/ApPqj7kUnbgz1
+Y6/Tm76GIm2O7SWciYGSTTTLTwjw5IWZLHK8yAyt8A4HsnmK8xg+s3rcNl42hHmZUysmTtO4I1An
+P0NuYjZbjepBc9PqRZI7ATRVbXiQRaGi4BDDkVIOTeYvVWzfZt4wnY6lZWxVJdLmkHuNAEAosyAv
+eTDm0nenerhLOz1RA6F742c1U9MqKIAxu34s2+l81KVtU2oQ2Ve68EV36HXCa06loK0QYq6Qd1nV
+kl6fz3FnHpdeixJtiadR+IPrzFR4Jiko/iYR3VwRjdivwKy0VK5gxgVxgvkuzERpPMZNNx+7dYZg
+UENwSeu4W+D24iZXxYb6updBis6o4ehTAo2WeL28CZQ46hcCV/ThmKo0wdegk4BRt5Om+JGtewRx
+qyueVkUO86XKveFS9Fn6TQyDPBSpnd3msExkoDW2UKDhquYpycfdCc6I/qK3YjSNA5k+R2Jo0z5c
+onTB7+iK3AvAtcoVQaxpnyM9s0/jyugQW2q690iQgsh8maa267sOyZDh3KBSCCav9K6kMcfeHlHR
+3vncF03sl33hJn6qewDa01KtVjLTojRbEu60L2qTOR8ZKPUA19aJT7u+4jE2+bx0YIGhv/vwXrXi
+hFGOaL3MR1CleHMArcYGUfIbN23KuxzOYOQLIJfbDplxGy6xV31BelhHe16e1F94y8qH0RPAzxtF
+F6PfmnNxk7ZRjdSw1kGCaxr08lHAvMzFUpw0iMlXbWMa3URlk8EoryYq/BNl0vMF7JIdwq3rkZa3
+SbGdXNnHPhXdFIJomnGD9NyJhyMl1/vmuHK6T9Ed4w2n0vipW1LUMgMwvSA1BSl1mSFx8Bot3z6i
+ncXFCqM15b6lLAhjDNimERjd3MJrEcHfC8xY7a7QFgCSbSnIBLGTVlj+HAQzfiQsgzC/rClM+J5u
+QWL3YpKRUFMmJrdQmdyLGVRxEcRKpBxLW0OKAzwtv0oHJRuwnypKuYljq3d9qkWZGubxMn2EDexe
+KUYyfCNRmkrDNOTWca4bdGuqLkWyUQvpdP7c1vaXUVtlP20snTu3q3q89pUxUYtTPcSuTp3daEqV
+I5GYVKGRO6emUZgNS3VbqWmfbEutEFmoMnQTaJaZYzIrKL23QaMxH8fCqyRSlkVej4qZUXOdipQw
+JXXRxj30LHLxF4R2eYBcBiJurGaCN8Q1lwmXq1p4QQP/9ZBHq4a1KeMThE/12UAmxsdI23OtU7Me
+rCms+8j4KGyH8udi6wxFLbEAyODxybaVJDp5zAeS2F1MGguzTGSaVIet/s6B+e4cOlBlL2C5pl9t
+WYBHT7KUwixMiYqfjmMEM3oVa98aAEzUEU2hbKAs2n1gksLY+WUr2vMxta3aF0SlJT6qv+ZA6Wpp
++Wo+5f02HovpqpdxVoI1jpxPiElU56hvPIjLnRF7n6vFrk0E5bCMN3TRKUvmvRyvYiZC2OxeAokz
+jmZodmYCusxXM6DtKIDa4qPMexIUGcjWuFVcI7loXWM+lGRokbhPDne1acxF6mFR2uUxyralP4gK
+9rO+zERB06GJvdNMqdo5mEtNu0og63Z+X1R5sqk1YVxSLY4bvvLZ+ZosHhVDvc7mj7Fnl4+TTamW
+B90pe2uRe+OSEXmYS8WyYQQB8SZB0C28zWSVkLHTBilVFVtUOKUyDnIzV7b5IJNRcYJSV/IO5NtU
+5+vSZK2qPxU0qZn31aGhOCl06rRgXAPPTLujzqgQZBldV9tBjJjZCZ1p8fCPwBPOfAwrZh1oi4gP
+7Ho150lCVB4NZ4jto7jP6iKMil5DP93HiY4RCWnRMRoiuK054eKfCytfps04zQ6dm6ajJ0DFGaZY
+jTztbplStfKlirKamBQLmWTczvIyLekW7FWyUq9aQC4uQYbq7O0XKADrQI4QFzZO2hQomLSkKMA9
+DNnoV1lStQFS/fSot7JlQiblVcRYofP2AtOI9M+qWyvtvmV24KOMqjXjA9UpZyOQdiSv3HjFdZtx
+D9IB0qxt+qMxohzL3ZHnj9IS2WU8lNPDki9Am2J3YJio5WBeA4Mdyr24HqaHuK/scr9PrWnZVwfB
+ZGW6GaOsjseouTKjmcR7g5lx8I0RcZ1rxIMd2lPr3Uknn+rtYHq5DF3didS9Gkk3xW9SeY/RHtLf
+slgM802lRk2/nci4m1iaFvQOyP6AIbEuzOl+TfeG6Qpx4BSyd2mawO35iK5VxV/jwZP1Vpoz46FW
+Zj4+Lo453cv11aTQD/2s8a10vA657Pjotd7w/yPXW6j+U58nQtpLaNFohTXNx7mTq0U4Dkp/SSoZ
+jmvgbW2QYTubt7Vu5HGwWgfSPVNp5GNuOdWpl5btsjH6avqoM1OaQSuySN/zEsPt95esMtsgriuj
+3ZetzNyzeKlG/AOzu/4q9D3At+eEJ5+0havsjxK5GIs9Fs3DNGNTc6BJpSYLQUaqHbatywJCeiLt
+qVZ2qhWMWH76g6FTeJBgy+rAlrEsN9Ggad8iGPUtqt2GHLdsGat4P0tTzQqtWJnHTT/Har1pK7u+
+7ZNJA3ihVAqSSkNVgt5Y2AA4Mp5r7I1pjrdEW8ZblKtRdBALFKhkqcF1JwoYEybpwAK7nIlz4cGF
+Dd7uxRndwQMaOnPMhqYyk1PVkN10FEOvNw9VZR3GRE25y0Xv9WlxUGuG3n2yarsLRqm0VzKxVSjo
+vRyivRy73IGRP32ImlfpoC7UlBeFuF2b0ZE2ejj29B/DeakXb79pVd08MlJFu668Sc8PGYE2OXbD
+MIPdbCJX3wCOtO+Iksy+5oOoylDKMm/3ssGBub4KI40tTSLjsztNYxcaRVaeKpNRrauXWu5VQuEW
+KqUqPuIgjrxNFwnuBseTCiFpEM1t5KY67VeHscjey+2UTc0V6OOqemqHPcznSwVN4+d4kdNDRnQ+
+Q9qcmb87fKRxuGDMtBH9mQzSrmp547IEFjWDX2MgV5PKAI+nhX+vTBYjyakJ/Q2XQbaX+eKWXVBl
+tsLutNLMa56rfJR5YSwbEz7TYS1LR/i2NmWfin5h/4AnRyUYCNqygLXsGrdZqmY2MtiCqSzqU1fz
+07RGrAX4xTxwsZ9qQVwui+4LYtqyIBodNpRj34mPDgcoJtEh8tihGjVdDDeeN4rAzeSqXeuQzD2w
+Q9TjefpWO/nshBFEpzagp6X0a2OueAQchL6c40enbrNWJl+abhQl0GnRppsC+mVYFCO9tjaGme4n
+S99/I39cqQlmL4pbz55oDo4ob09ac8qszbDYy3mcSftmWQQd8RZrek+MtdSu20TV232+cVOnYWmK
+7SwJztsoSjekYZcb1ufInZcocFqayaoYWKRsnu2wSTWRMMk7SnfEbN+UQZT08ZWS0oi/mFqsiBt8
+YxVsXvKgjC16bMv2xzGrHgxXKY6deOzvGM/J56UfFSvIFE+NgxgvDnASOGUDj1IxHSxmaTKFAgg0
+fUc5uEBhtIZPsmjsDNrIXTcaliUWEj9cDEZTTsY/r2b0dVyYaQMJQP5idmvjOG6tZAn0wi3GPfZO
+rcEeKs6zrUhq1dyXSrycdGMyVNsxV8VXB2Oat5FxbpqgzXQcR2qGeiIYM8iYzMrxcKekuvmR49qs
+h6XTLuTumXXu7uX1OiYAglnVxpgGxWIXaUzztu8AHWyGzMyOnNbtI+QNo/ySTZp20hdKotDmWgxO
+JJ3sYozhrJd0zmVnb3Ia2ndduU6GpjSHj51Manfv2XH//JfC1XPvzlPs9rN61np0xhGIfZW0bDIT
+vZ26pDKizE9SfPIL8dK8w1U9274c3fzEKPLsLhmW9pZ8ruKrYUWGERIcbZZBog6I0NusVNiIidLR
+efLMEWGKG+zh7Q+405tbP59DF9QlZnbNXHV2qonGbCKlrL04lFESnwjSZbGZmfM75trdnuTTZQzg
+DUQd4NQEQPiyaDlkZREp7piE3jS75VGX5pkTGtZIw1dt81wNkESXcj1tjw+LmKzrGlUCEu2ira5q
+S8j71GkA87597+tFd74b5guDuFm2z2T77zRIlBUhjJotDe3uSxkN2RI2hM/vCzMFQr2UP/qkn7qT
+xBO7K/YaBsPLR8A045gKSPTAakW8r0KbZiF9N613p6dASANeaTIsoaeQ5U9e78urDEVqj2XNCxWn
+c4zfgdftDFW3t1FAwrIgU4Moq6baGsjNzt9+nLut0Kdr0x1e3UI66QjmTlfSy5C05FlpkE44VZ/K
+NjIW3vEJx57bd2gP4jTX8Ulwlg+MMR3noGniStsg41USxp+pOHtVwXp+2Uh0Ba01L18akdtfFSOK
+OLVGFgccTS7RbW8PmR6+/el3GghPH55XFPoVznabTImXD45kykKnP64HUOQ4XcvFZVFYI44GrDw/
+fCnQZ5TsKN+R1bKba98UatLlkOaY2MdkE7XVEk6GsMLca7t3Xrz1634xxImDofdObXHlDhJj/PKu
+shxv5DRI7qpX66ME9cWeEi2reMmJPwoia/1IDlmQlZNxLA3rPfDhqzdsvbxFVgCMRYaks9NHI77f
+E6JCccmQd/eUBSmnaXes6apiUECp1Yu3n+yr2WwNwMHBj+KObGL7qb/8rDfSoK6J8GpELEe5uZ8X
+1bhp00S881Bf39X/Y+/MliM30iz9Kv0CSMO+3AZiJxnct7yBkclM7HAHHPvT94eQqipFaVSj6Vab
+zdhcVFmZSsxIRgR8Of853/ntq3z6quRgUQnXWFEoNd3jOuOKsFhOt0YS3Pa99e98Kp8tf/weNKks
+TAdmd6g8Z4rTT7+VU+mlTPHprdvJSk9OMTq3chKceL1KM9HPcmmY47vhRnm0T3LD2LHcBuU6r5EM
+EWvx1LFfclHgUlLQtTFWabHuVGeK/bTEelZGKxd7Fk01PKpNazyM46we9NSNvqbAj/9dE8cffUiI
+0jresSXHb3/6TiZSQ9Dhnh1aGPhekzx9gbiV3/3Vb4K98NN1vvK6Sz3Wp32tEFORuJCMw6mwitdA
+FwioYyV/QQb/pSHHtfxe3bfN9+8tUIbPJIbfsBz+76U3WIRAzZ8+gIUP8esc5Bd8w1Vavan/2H1v
+3lL1s7v21x/8ddRhBV9YCtj/Kbw3MF8tu9Ov7lrH+LKckZY2WX3B6Pp8a/456rABPODHDMi40viJ
+6PLTqMP8ErCBYwTgIAN9gUztXxh1GL+siD+tmBzSbC5VoGGYdmAhPQ9Gf3rY+rFCYKpsVkzIOze+
+03PPWWJ7jprEySzMr9RikMDEz2q03KRKXw8t1Zqh2RX7yuuMt3oegkPmp/FWeg2E/rhPVpaGj1WU
+ZEV9Wg831pBF1CLZD/hKCamUojqxfKaXcUYez8JhuG9qnITnshM99sARjGaxNig2zbr4plbRRK1q
+dt1nndwm7XSH8LNTPk7WPvG1tRyb57zRxs3Ux+y3VcPy2/Sk52tHPcopaC5bt4o2iAvpAbiAz/W7
+eaz9RF1oemN/c5xIbcum8kKfl93lGleGSauStw5Qwb2fB/Mm48qxxQj64STVSfp2vNOd1gV77I4d
+b4swQ8AD054HkGznANFBK+RhJPB2k6WxF9LGCQNtNP2dmKbpRIP4dax55VJab+wKgzujTQPL1x4U
+65oc4qL4BFrMm8gwRw73iqM8HsIgu1a2MlGW6Csi+4ik4BEuzedUrNzOvh21ylmz4WEaXfRphwv2
+XaaEsVFutZ0oXlhZpho2SMrkgZrKWqM8bjK79I6J35x6koObVvnTWs3zo+56JAFrroHUVjfAdVV1
+YHnsV3ojY27DmXMnhrbYTrXfMVtAEDUIZm7mfLibW3ynNs5jNMmiOjqROPT2aFNVIWcuQtRfQjqr
+n40ZXJtWg3aCsUsUkqnAvDZqzT50WqPWZhe9N1mnbyRTljtf0544z0OIcMctOL27Uk43yGowAlMt
+RziLoDQk5rPZdkAnC0ZA/tQhNlTPWuHuWH2f7Yg058ysYhXEDLXmvjki5IATc0h4JIreiTEookPt
+VnSFoaMe8iyiarCVTfMQe/a89TsU76B9tniNh0Szm71bOuptVs1NhyV61ShnePBQLS+Nof1a5tNj
+NjpPMlA/8nnOQq3pd1IEJ3fZsm+dUet+xLanmsPYwxZacRNtq1AJR44HNfVjuenA4HgXWTmNXye7
+8VFhg0icbHqUqo2XcZ+47smSXHd+kRUoenbuP7WadI0sdCdUe2ZojS3XYxFoRJ3gCeGgNWBJUP0Q
+zCFu14UjUUeT3CQRuwnaNhrtY5VbVJYikdUen4WRwEScWL+2szPkct2nRo4XOYYqdJVHQXldCRnL
+k9UggTkbvTalb+Jv9fN6a6UpXu1yqEgBg7Uy0o9G2BE5ao5E8SavSvnk2LF7O3b0fq+Tme7DUPc0
+TUNay5jEmMQ2X8vB6+Nj4PvpKW5tz9upNp6PEQ1M2rq0vEVBn9Oy24JJrnnc6qbkcWcuWhP0HVqg
+Mha52EM+2A4DU3OMHkiTBtHanWpi+XZQ6IRuqYQLW0tWcejJGtmLQE1lbXPkV8AXuek5jKcGUxLq
+9Md5kXtV2qNunQ3OdRdhdnamBF3HN7ug3WuQTZy1V4J/25qQlevtHDHlBldqt90GdgYuam7rSbL1
+EezSdYsmF4St1xJsgJUSPev9pKCWnF3bJImcR3QbHM4qmwj34DyfpnVctHXNzX+xgRvePCKnySY5
+iCRBwZ3cVD0D9WRgkp0d5l3jJ7e9B6BrFRglY6W4m8v2UHh5sBC6F7N6qTzANipu5/aK61KqnZqg
+SqlR1Lp4ugnOJnhtjCoCtKVj7klA8wEL0+nzQx5VgUYTYqoHuwIowbgy7XF4MxW2e6Hs6I7xCW+I
+CFIsuWkSAGd0p8W/DxLAcr4hzNo3zIDpcrC16c0eBifauKnVW+u8mFGQKvbWIBQS9W9HkrinhM4j
+Ykzmw5bOPvbZNG4js/PyjRyCbgqt0cFg71tdSnQ8dsb7zh3b64a9fkvIqd8Xznyha0l2kbeN3EAV
+rG6duD6lmT6SkPCHdTJ4I5mLWFzHLtMGGejDtSe9CDxB6TKvI3Ic9snwZsTZvEvc9DSSDN5NAegh
+lSr9khpw6KXleNBdHrYqKlr06BaSyhiv9dqp1rWS6opL2bSajc5ZuV6XboPOIIHtmYzsg2gnG/oX
+rNxIN/nYQWUU5X0R97exxSlfsn+Gc5WCTwJw0VxlUx7nj41e5NplpOx9abJED7Klb8CGr/eV+Vox
+7lC+b6AkyCNTDmLswewcRKydnNqdL3Kt2DVqpHon2cRRdcXcQL/qCnS8PnqzoEowIhY/GjkyMyeG
+vk004yYNGN3qGZWUSvkMgArXWndtxJogbqLlG0rCYTWj1K9SbdRWE6vVqs+FeRIk1cIpibaRjl8i
+l9aHHJwXJp/6EV06YXd0r6LKG/eiku4V6Lx+DWpRW2XC3JuT2GhGuXdnw9o3Q6u+uzO8JifN1zIv
+hn2SilYwU9AEdga25kx6z4wZHhpDbw8TX4i1rY3lylRpsGqt5l0x7GnXztjfDYAFkEQ4IU2blsui
+yU5VMTWWsonWdt+xYniBdZENU7XrCNPeO42fJvmqmjXvQ1NGEx+TzKajgHFm4TzXpR4kYVLa5rxz
+bfATpz422gtT42y29YJZB8kRDX28acrcdFB8ZCzW80RP921QTC5x/6hR+ip2qmGBVem7NBDzRizp
+lAt71uH6eO2c3Wa6aO8zL6JNuE8VwN7SNsR3kiO93BZN5Tg3bUJF5LpLpzxY0/oqq4tyGqa9gL5F
+vWzu+ZW1T5PZMI62HTN4GnKzsMM0DeqPsiyTgXEpc4P90Oot72lvOu2hU3Uy7WTHH3QAnXhOm1bI
+B6+VlsAIChKYJ7CpssZmhTbrMjokieZ46zmN7Ow45XJigoBu2hwrQjAp441lgOpXtpVcUB2cx6vM
+LYyYIwiZs+fZM3iuLMplUhWasXLVVaGpEnaRlVbFjTvpQ3ejq2407JXStDna+MPQ3XV+nWsr2k+q
+20Bv5nkzEJusbyfOPK+tnRD0EmCl5pA+l75YVcTnaERgxuzdazEC8A72R+qjITGeDpukI+ATuaPg
+dMiJSu75WyiGdMngJwdXTx3oCxwNqErzhjTWN7kyymPGuItTA5mZlRYHbfJYllOO2MaAqkC9dyrt
+zpybV6fMvb2v+/sUjCEaUlBvjWLezcbU7LVuOdMu9CUvyFNeb8ROlHYPKcHAVW0a35hLv+dp2wG+
+tVJmjw1yY5gj1993dsRfk1n3JvPF49C6R6YZG85thExaaictQtmDPstdqeTe8OgSddogfsxKvsFG
+fWW4UBRFiUHCUSVgYljwK5c2PZfnZOtqdnCwF2cAObNjV4sHGgTKVT/w/amYFHWRtjZEd62gYN3y
+Bj8nWZasRqu41v382NYMozym5mx59RHNLNtHnXPgSHS9DCBfWcbGk9NSfJMm951WbTvL3jhFQfW3
+ql6MzIAOoUS0FW4QjnX7VNTyRgXdPjGr98IX5dqp0nszsW4TpTEkjurxaxpXrz5PKPXU6RHPUL1n
+xn508mRtjRJycCZJ3eCJWmn5/G4M0VVRO/etHRkrmiuuqLwawswL6svUp6RLWMuJyA2ebZAU2CrE
+j7mPW2YuBncV4jujN5w8dpfeCHZoTVeu0m6LMnuaPXWyJnHjpFZ6dKPim+zabFuqWFulkZXsrITp
+7VCLl3T26hATir6KpoIxdSHle981953u3RnUhZC76q8SO9hzl9qquLvoRsAk+JKYlzfe5VwpDqNd
+vPKmFtnEuPWkxTVikDdZ4Nwy1tiCS37qRYLbxlQBj+jchFYne8BD7Qtb9WLAyqC5GcD+0a846r6I
+uN3WU80mLoQKa3pEpmHYWL08mlU77DJNFbsskB+R6TQ7EsBvDSYtK3EwIATHOZ6efK5GG2mZJXqo
+8zEGHMqXWbHVDKFVzu99EcRtCP9/Z6fFS8ZliL1F9v6F3brPOvy077qr9ZeRnT5S89jeI56GvW4T
++BwPLANcW8dxE9fRsSmnx7zUL6p5nlY4om4G19s5lXupuLtxvtxknt4/TV13OcvxJudidao9795e
+7DNcf3WWelB/WTP6h7TLwGJiUPwKSWk9OTBB7LqyXh17eErh7qxVbzJstVKuZXHRhE4Z3SS1kKEb
+zNo6ULl5EZl4QCZl8PFMtZFvU9ucbigDuMkjUC1EvYcLDBLf8HTFK9CGwyWbjVwts8DNjBp136An
+HfgzzJhgIc6KCUDvpkyz70z2fAZEvaC3O6pBygTddu6cpt3ZnSXN3dDjIlmx23blM6AWpu0qV4xU
+7aGPriEyKDwyessp6ppbHDYCIEJpd6CZmZ+yo0Tfc0zPlrybkdS7PO1VtuHaYwOOEWbGAJphLgNS
+PICFtRW+olpZIx6a8ys1rreagwk3gJU7/L++3y1D11LDMNFlzFmHQGkYbxaPhIkcll0y3ANWXIHE
+e+hHTBfkPIfhsi/pFlojcqUXGeypgKtQByeH4Lry57DDO8eBrZmCY05LNjziJMaWgQAjWROmbDP2
+zsxpthH8VtrgIoNpw7DVnQT7kwUTsbl0UqWSvck95ipxEi48wVByJNfSkiMtUrn4iCLZHzsuVjHm
+Izc/SNnGt7mBW+5Ck8r6YcVW/YA3NPW3ZHU7DrUj9FRFmVQoR/3NKeaX2LYyyDetzxsnguQozMHv
+t+NsutANa3Vs/eiGYq6nNh0vAFGflDbJct20pn5VemNwUZXMB7c1E5RyZ0L92rpddWosAFtewMUH
+gyk5w55eKVyomww9RjSpGaICb4u+W9Vz0zE3No7VON/YQ8GbABfSStxLU4l1V7Njlla3o7n9yeIW
+eJF48wlLBNCoQYRNAVlo0so3NOxpr3IMD50POqVW5UkIAo+2Uw+r0TCf2kJNm3J2P9iHTqM9Mhu1
+7kffTaIDJdsMlRwr0t70oAruo0k3o82s0jbeFqq7Q9mKLum5N1gttHx4iMWgrA32pOIOWxDE0CxD
+N93gLa1BQLrCbS890Ka72cYGGorMxgZkiaHJL8A/XukJTpIsSbh/9CZtzrXIzQ+ltycTMSgyxbrV
+VM2RbRBXbdBvU12+Z+akLgeBwwD8wisz+njXaNCVaNFKWBnNLZvRtxJ5gKNHUOP/I22OgmvecX3k
+4k/9FVHbILCuCIO/ICZ9Z/CL/TfI9TfbEcdU78XtONJw3rBg7tie5+o+y2uOfP5Qw4QTBGkxG5bL
+0asnCHzBlTxoVnkj+Vd04QnsCe6QvXH74d3pdNZMO3U5isU6Dt2Njo+FlZLQK52MRbF4mMqyE2uh
+CX/DOZTH3yavbIeZUSe37N1wJxvaVrfDbLvbOcX2BDwsTck9R9b0XJUWkM6mVc0HarnLnj4oH79I
+Xg480DFOh+aqqYtS3TUdtt2V12ipAn8u+mYT4InC+6Xo0/xWQ6R8mbD+UKVg99qG1teBcfNUcm6F
+ob4cM62EZWf080bfEFxnp1CWNrxL5sbasWonSuGYMKek1zNuq3odr4xeF/eYDtsLY3DzG1tZ3o+0
+1iGfxsLbl0iKnNVbZD0p9W/CQo9j6MZwviw6+ej5CVBasHNyUgBjY10dvK77XgqGQkDKhm3UjZ5x
+lJVZh+YgNw0M2uCYjH4/710zbqzbbHLHkqffZ1NAHMzbkMtpkB2HAAPH2ihGFV8o15dy13Jg/ahL
+P6W8WfenH7UbZ8GG2SWQrzbPh2CHVbmLToMrqmPG6EYe2sruU/xosLEPOeWquKQ7bOQX1I5yZclr
+FGQmmWwaq1HoaYYSIxHb0tLy46MsGI1tmMyw8Maqja6XdtUpFLqwQ93xx5eawc1jMtV6qKKuCNus
+NEJsq+OpsPTxKeVwIWarOehpibKExvPdjky+k3rsZG+D5xY7ylUKHFWDaz/2MANMwuKOtqod7gyQ
+Q4J7K0/mPU9CEKBG8dprZm/9EOpV4o2XrdASZqGZFcXllZfL0bhXmYcjkzWmqq/zAbve3job0vqR
+y8shNyOVvc0NZh6ugxgbuLjW802BeXN8GzMRR9yS48l5cHodr2bT6Bi9mrOBjoInrCDNQg1GufPs
+R4xcVXXHIVhWt5ZPtP4xmyyC/G0EyZ4OqLPfj7l3Nodt7QVi086ir9amXwUOPstMlPOl70a8B0PV
+cV6gTK9K9pUQ7bQqGy3PHvhVTIw1Abf3raEDJ9x0gR0nt4USjc2mO+avkTVW2iZudM344Rh1+Z7y
+2fzgum0AW5Nc1oGdibWyCtzVZWLjaOniDKuX5nZQx+JWx5M4nD2ZTmLF+nVUVO27jf1n2Gh8YxAj
+VVtepJhp/W1dp+7ARzewn7WxCOrNmOeSSxwM/RJYIHbSiB3IuOGo11hh11vNZawFvbflMam1dYf5
+FucNJmP0RccO+G+7mkPAsrO7iRZzK7cfvFYDNh8cL43B11ObXHPGNVbHH1iAo2DlaaUVHFnYtDxE
+mptZIdqIRU0FFfRaLSswmVGxylImI1eNJ7ALyaFjtkkHUuEt9/cu5cvc+lnmbmgL1/s1UiEcxYiu
+t3zn8WSdRrco4uuRtg+eIQxmLzyZGtyFsndfzC7xXokW2HesEZwCPamx1tcex/82gdPAQSoYOG4y
+20jf+yZONl7bdKdZ1PNV3E/WXeGk01Yy4dwOGNlPfm8d6rY1nyaYeSVn5j21z+MmQvd8BIzo7jlx
+cEyaUxmdoIfhslR+h5yJ87WY6+oKJFG+9wEDJIbstrpe01fk+EALWXJP8BnHVSRqeqFMqBWKi+6p
+iVL76NuaEUrHOmj+/L10BzovJnPlcZuex1IPJzOQ64mpJbDQKBw6Vby6RsXIjjV8P+K4XM2yvVN+
+s69q/85G4vvG1PMh8IojdgC5KjiTrDs66O+r1r+MA4ldSYtDJog7L8iGVZN6mxgX+5bsafzU+v5H
+X0UBnvveOOKB1ep1lmUTUQbeC/xyLuTrhhkOwo7j/n+Wz+9A8WaAheXPRo0LweftP0ImkHyl334e
+Nv76o//IVflfLFQ/tCgqEQyPYfO/ho3WFy6BHrz4pbVzGRv+a9hoOl8Cat1dbG0OBRWEnn4aNgZf
+LDRuKD8M+Th/OOZfGTb+3nGyvDIceR9nNXOATyNqm8O9Ul2H+dC2jTCr7ejBHVprP1ui//bTO/QH
+NrTfj9x5qcD0sIHwPjCi+K0NpGV0t0g95drgFw57o3dC9uyP/5MXofAdzoOJUP/J6qYbLBSewEyZ
+IOhtkkrHJD8E879p6aVh4neeFni3Lqh/x9VZ9JxPr6NxpASer3MMXgC7kzeNag3+ZzqJOZbelZ3Y
+0Hih5DNttaQFpXc+E3u1dlzovW0A/lQ1IDk/QATqkRUqraHpln0vRZ01l0kKDrwoK5Mbk1M70goP
+/s6LbT/dplM0coOCNMU9T9eccW/bo+atbRXVxcpy+3haS5SG72YcW69VOvQfRWzF8zpge9PD2o0y
+K2ScBdiFFZr5sTnOMieo03DSaU1b+9FQ8X0lUMDpFQSj5IWNmXXfbdch8jOAKMrCjg6r+9H1WnSN
+wTEREEUE6i5nMS8jIoPAYqIG/5pXGkMoqi4bOL53FD1iu42f7c4cOq7YAxqvmcPOY1ZamSmCjesW
+ITdOLE8gs9ofdc6MJoxALyOx13315JiZM5Arc81vrW7bhCFkHlDhYmZv/PloBb3RMZVJIeYu8HQv
+bdaOYybmBQ7+6qR7GTc9T3rOG+5fpqmZaVQz/HifMhhMKALJP1f9wD+v5qsq7n0vdN28uvSnfGSE
+S8WVvbK9mQt86jcdIiHD5vxyUjXqsushEfP+W3pwa9Q6PVhJ5Tpfk3LUqPIcx+a2as1U38PG533W
+4dpbodPP0xU7UPPExITwHXe77GEsB/FeJSImQFey1W8yxf66yvNCGmGnHBhOhlvRJtxaBRbw3Bht
+3gLPzr5HRhw9RrkYHjhLggAeyz7FPOtJOXH68Xx6iM0ubu7GWoivJoyhG4fzAIOG1C2ektyvv5q+
+qvTQhFN8jWNqAickDfcpp435as68lhswVulNa1XdtIlir7uOnCmY9jJp/ReLdNh706Q2yCEqX8H1
+4Jm9dDLbuDKEyyfRyVw9BHGV3/cq8A6iKlvK0aXTvARxQQ1C4k2MIAz85HuNjCIGsTFpvjrMMwiW
+VRNT4KC1mBZjzA7eevI6E19X5my7Ioo4QEyejbJG3ix9E7HV4LVuegdqf1kIgxQMe+Va1ycEM4dA
+Qb/KnDnGIqF1NPnhai9XhgMsikRUN97SnYIz0DALwQ17NvEtzLQnQIAuhvJNmaO87YXnfuSyjfag
+cqt+xcFBexmT9KswkArxOuj2c+R1lFJ1ucsdNKIgAFM4PGAmVt2gbosaYzqBKXvO4PZSLbOZ8IwR
+XsuMFgS5FhsX7jjq1/D+GUxl5sz0g7icMEKjLJpX5WscNKjUmL652qggoFa6xMSu+TROiFyLDyqp
+o3HT2TqDIS3TZLQZwPJGq7xegqVNqWFSt0avNkO39fM34qhE4NDFcD4MnMTHldNP2mGmSVuscqMq
+b1splk9deCbSV0slUjgMVZEezTqoKB3o9OIx0fzJ3ZYM6wyuwRnTUL0fZ5BXQVdxRdMJcRDqsuph
+XXcFQ35PZW2340qd3xMCtNYFS5AfxhGz2ZUya8GZ2J8o3Rm9JB5CmUrsuVLD7g55mzHbGuRa8syo
+yBjXfo6Qu4v9UaLWzRh/diKrIpYnewLn5SSTeNWT5fHPe5KHax5F/zEuulbfpA1G7tU0USizEXmm
+aXyrUB1WNKnQMImHxfvAMJGUl07VxfdlEvUvshPetVcqy92AhxIU3QdVAtfRlOO6hstFRkUVGSaT
+eEizkACC+WKVPqd4I5p1bU3PejCFObUdaZhj/oZCrVnVreG3/l0SafxNNQTSdSREbEId7xKk8M58
+AvLs7agm0qr1MDfWm5MuMQIbVfHQgKrvN4Yz8hyYUac/GPS2HH2tJ6QYyTz5UHkav5r9yMfd1SNj
+BZdgIiupVZLeIOmTxSuuQAxqVRaYz0VhJteoEQs9LDFM7DXp2Ie4HqEqBwg14w7Z0Pvhn7nL1QB3
+HYdH42nr4sxmbgsrucGODbGZ+LO8W96Rnlp5J7r0ehMU+FQ0nNjPvOfizH6OYDyf+J+BIrUDHHrE
+G/A0pFU3bgrDgh49e33wgnjmf50XuDQiPJzp5exSrVGRRm+VZhMs6pSLxnvLRRFC9ZlWnccoIzg9
+eHRWiVcU34Bow7bGbGEeO7Oc2f3O9Gu37xQR66aRZBoWQLajpHHirgo1u1gA2v4Zpa0QjpYxLtA2
+b4Ftw8CbSL/4C4O7J1f/jbhDV29Kkp5vzNfgdXuIJM/1ZGTaqg/i8qU5s70pA4gerDPwW6YaTquF
+Ap7MVLZyDdagg+dnUrjBU3VLCrZ6rwJZvA8iIoU3nfniNtK5XOVab56GpLMgkOvAyGfsPQ9lNOBP
+mBZYedXX3rWhFoJ5anb21rbm9ADPMb/TkgVzrp+R572hNVu63IlbQMADij6fAekxTTPuyl246bGd
+UbRScqxjIJfmD1q2INaxyfTPw5jGbzZtqTm7uD5/XzpusR6VBtFxobcoI8MZ3g7knuUZjbC8b854
+dwL80+VUl/N1vdDf2aswnhF7lgdZVoW3ci19GPhcF2w8JV/mi5c6wOTzhSs/LoR5+wybTwvfOWL0
+ca7IRSFQNGcwPVg+Dc78L8B6H3Z9tFDsCYoBtC/PcPsyXTj3uoJ4f4bfa4hEdy5zwG/KXeD4hbk4
+7nyrlrxNCz9fnFH60RmrH58R++YZt5+OHVEiW0Dh12KXfM5C5h8XRn8X283zbOU9GisE/4Qt5HJA
+87x2zoB/i+3pfjxj/8dzBUC8tAHAHKQYYNToCBjOdQHV0hwglg6BIkmtZwCjFAvAPTfvS2OpG6j7
+pXpgSJvhKVv6CJrMQYWczzUFnu5QWZCf6wsY7vK1yM+tBueCA0l67LI51x7kfWrlcPstyPDAqOVq
+NPW432i2W7sMiuhOiJYWhUlAzlxNS7dCbrmMP4e+K1ZBGoEgmHuNIgb3XMrgOLnK2ZLoajAZ3ZJC
+1Ob6PZiWMod06XVg266+dgaGrm2u0/uAFdegOceOnas+a+prrrDZvSNNjMHd0hsxnyskai8R98HS
+K1HHnvPEUcS/L7E6cbs+V1DkQet+G8/FFNnSUWGRVo/W89JcwQbr+yAKEgot8nLCsMw/SJ+rYfA1
+IonV8INWz/EGjgOVGMm5HYOwB8fdc2nGcC7Q+PObyu9uXuaiwbFcY/RcbNXLDeMnj+dIPqOiV0ms
+nVyrbwuNmTan1mGXTIb7/OcvdW6D/MlPai++d3CdixhP1QpW5N++VtUQQK2KEpVAONYDowvojRLO
+xNfa14hDKI9g68odprlYFTb5xm0gnelHOSFWbsAkyifDw3GA/IzL+8Jq4gyRPE9wgcCNNC7GcRAP
+0ux8fc3nan7vmn52Gd9LpNTU8E6j6rMfhqer28C2p6+OM0wZblJHUMYu8uBtiVB9NdLBrXGIkO1v
+SzN5cBt7fq+GorwfsEjOq2zgfrQ6vy9/yTn9/3rnHRZig4/7f42HWSp+qPc5vlXf0+a3iJhffvQf
+Uob+BcgLpmSyIpbO9Zr7/T+oxPYX3yfeoRN9/BX18k/ftKl/Wb52gBeJHNm4mXkO/omIsb5YXKAt
+H00gwIz61xAxn/QFTNOex3MU8E3SF4Xk05d8YmaeeTXD8CBXzqZOAEb4kTvvfnpz/kDF+PTYosqY
+v2k5/vQqf2fL8Sdt5m9qOf70Kv8zLcefFr//SsvxAkP6OX60fGK/aTn+9In9ScuxAzjIv4y83vth
+5FK9UOpkYX1y1HD1Z6XHAvUmR273hVqfq48nlRjVpkPaZnD6v12A/Cnxw+9hLakEg+suuS3+89tF
+3P5nAfJAxwBkAcwn7ktiCat9bNCG7wwfePTim67vmGsJ+9IorSzd/XEpcj1VxdXcRmO6/u9oRv70
++f5PNiOj4/68r/6Nzciffsm/sRmZ3NJvf6vY+zuakd1lif3pTEIf4n9/M/I5FfXTYWX5nv9SYYq7
+k33jcyL2X9XIrS85w5ezHl3QaIilZvZoLI7ANJVR7G46Y7DAMWnV0T4XJw/2aH21Eh9aAmWj+9qv
+ygtUNBgBbdQ4l61R+fKXAwSBqT/uW/285Zz/qgR3UeF9ns2lD/bn9+tvalT+pDXHw9/SqPzpd/kv
+Nypb1vIk/vaDJh5JINNlNr2cLD49P/oYeDm3cT3E+IXaZwU5l0VuHOoJJJZINxnXG5dUDcoCLvK2
+fkgwQeOIciyWP6gw/rOVJIR9MgIL767KkmA9dLX+OmtAVqDKcC4Nc5APT03ra3ftGDTPJrw1foBa
+lT2IMfv7BKYcfn9eBeU2QkNRq2AyAgyRJERJx5AGEeso0IubvBvpyKorJV81MVGGNfW9esgkvqhQ
+l0J/rnskTKxffXqv6YV/h7nbr0MvabsD93GGqZ2IpjuvCHy5xvPhPoxKr9uQKxnRpqTIEJzKrrV3
+SBK2tVJU3MtdXw4DGQw/CjBZGlX/alY6zDbkk+oCOha7TZp7zgQuha4xuPmgKkLL8eVL0yr1RF4A
+5o2dIZ2uldva2Q69br6ilEahjVv8azXOfVrDtHIg3RGN8UUHdwRVHOJE9xxMk15vUMmzV7cSPdPP
+2hmfggKL1rpKffuumDzjBxWEESbWstMVRqlgfsJ7Ry9EPxdOvJ7camqO9DPp94aWGnIza4iSoYS1
+YKJEY4vD/VP3WGbS0r/NiR7MvINx9wGZYu65Q5eGt+7m3jhhIgCcECSyfa2Rs1uwPrhxLxoXGX3b
+WF0iLuN4YsZfja2ewVmRQO9D2y6L9FFENYSHxLXoQYCDwhAiJ3BDEDiGaVVZDgJsFhmWoAmxMo5t
+NeuMBKQ34gMpBsrijGa6CuxBt7dR60VxmBIKxyZD0Nze9I01fUs8b9LRhiUAogy/WrZW+TCJVf+f
+7J1Hc+RImkR/EdqgxXETSEkymRRVLNYFxhINLSKAAAL49fvAndntmbUds7nvcaaLGgjhn/tzDT0q
+nru8fWI6GMirtVDwjeMNF5OTTD7Nvh8utX3traw7tLRdwZTei73aFTNNiQhYZCJEat/7Uuj7VE0G
+GuhMncYOKv8qQOXnWb0vPGOYkqXAqRQHPvWKcboWLbr3xq33zHXId6TRwNkXauxA26/lNnFHI/jh
+fcLvtTlhXx4+ofjpJyB/JkKDT3HD5k+CQTnAfPlj/MTqy0/E/kwk46v6BO+rjcE/aI8kEi2ZLwQ0
+rBcadvsiyZmb/co/Ef6phOS1t608vIafkH/zE/ivP+H/mbUVATirMu+5L9tdrKPMvJpAQfBeDtD/
+D4aJiwi9TfJsWjjlIzgyvBjIGoIMVbt40a1vS2dE980domXZEO7XUa4MjogpDdyxv9FKsfyym7Lh
+yZHL8tEIt7R2YVWRbppaGdWEScKOzsLCehM2pveE0W3R7KeCpHOc2U1TJlp78qJNLDLXdhmcSzeR
+DNrpBRvqLl8IOicqy6snt4yW6sCxrHwaOpt8SYyHV9xvf7HusOBHN66LV1fFJQxmdFgjctCFs3lZ
+mp3nVCPVSVuMq+9A6GHVU9gdkfaZVeW1SedJ6Znph7E4DmWMoOwA5oU+ku9nLixkRhHFaOzdo+ad
+gDfmkHDqeoB+14zzXh1HECzgDfku4JIB/t/RpY/9py5zvIORdslMKV79G22Im8AZpcEjHSXFlk0L
+GvNEJiCYqU1JI30ThSy++mWYjwcdeGt+aaasP1Fdjrey0bOlkjKX+rHE56N2/jg660EvWacJqevg
+JZRlKe7GTFYweGxMsp/5NqQaBlXDPlqVf+cK5cKXbM3ptVHBsMRzuNEJMclCKnQ3aCGeP/iF84Yy
+xI0E1ZDSGQiHTTGnX1mi4R4Ouq8fFAHDD9sZhy5GE1cvi7v0BBI3cKKlBL8lQmLwFN0NrZjzc/80
+P3mLTj50PwVypEj6CeNF+clmpMq2/u4uuiGjl1fziLlzIzkym4LqGCkH5GL0SXu06LyXB+TpNNiV
+AKauKlAtudQeTCSFLNbPwlJpf8CVCQVzkZJhjIrMAOYgrSZQ/yojvGV2Z4THeYNRiona6NhcJ69M
+YJx54Y5pPugqbAzRbww+EC359P612zCXzIchXkaf9Mt/ffn93+cdUH2mE1kbNQJiyz+dD+3FJLVo
+M5ABKpddys5Yz6kedfyvv8p2IfvHc8HGaKGj0Wai4HGX/8dTVcciyewxxO5tFFDszAEfr23TqkLa
+A1SlN0O/RFM6p8aw/teX/n9F6C/AYH+7Of7fetB//JS//2po+fznf9OAfP8Pn0WYP41lueBjtgPv
+3zSgwPkDDAPMMSoFLMJXW2nV37PzwR8WQSqO8uA/cLQQLv0fDciy/rDcwIEO8l8mmH8vO0+K/x8f
+Ho43Ng9NtF2SwdzYm+Hmr0fyTAdAX/FUJEM5ifrDXKw6maUght3bDjOMylNkHSsVlEnfu328+W0f
+oiGvWM+j8VaRm/6WiiZ47Dduad84xguxVMa4XT3XHEkyIqKrVgN55WrWh6yv05OQxDVaxxifvEij
+l8Omco9WQFKumJjDjsQO6XwVZCyW/lvUBVmb1I4wfVB8DYjSGvISc1Pvt6ar9DpCq8KRq638Eoix
+wlydprc6YN+O537wH1wL70ifQ1GKO2/lkOrTorKhYmKJA3Zv14o02Lj2oMz85oKjeRrvzWqy7+dS
+yae5ILHS1iXBH8vx//SYXRcxrp+Ipi2vOjICYjmzhV3flwu579oQVG5Z8xfEZWwartOkb0SK03up
+/OwSEMO5bzP5WoxlsTcn4VwqkJXQo4jdrmtxW/VSXQiY5c+iApacD4RCkY+v/VTYDy5BhrdUrO1J
+h0VwXoxum5uYTvZ1oO66iBew0kngj9A0dWW+QuEBjltF4de5nHr8NOSkXaBcJ9uGJKk7I+PYrAir
+BvRQsT5qjrat6jJ4tRorfqHy5aH3W7yRoItjsUzrWbVZtG+8qjwz5Xym5vPile3bGHEyIChQhor2
+oWDGbF4xA7La0YrxaY9JsXhh7NoW9WWFmcZFVnctqLpeH/hT2jtaputLBnGGqi0ToiUOsl1kF+Jg
+i5VECzScZBH+cBhHA3dKODoHmAMYwYPOPgMiaX/Q0aT2K6EnqA4bnpUkAw4Dbrd17AsnfWx799lq
+C4ZlbofHw4tlhgEA35F4XqSZHdaKND7Ru+A0B+MWwOXnrfy6vAZFOOGIdfwnvkL3zEwZO/NgZQcH
+MOS+GcH1llNFjiecuoTIxjw+Ndqbw4MdMswjosF2XYKUnTxCS8TpL+AXx/J7Q1Zt4Cw8z1HhXTPK
+vBnQZ+Qdm1PDyIa9280ZirmHSmRFuLlrLDCnibuKvLMeesswiI1rGy6zT5N3W7OvPi+gmdbizufe
+VVn0JhftmfkAx7Kh6iBkCUqz+mX6TdiFT5SRsCBoXtxly9T98vNVfEkbXydmtSxnSa3ct6aENbub
+0ZBvk7fRMiW/rJyrR8OAOx/26IDdcz2U/YFTEBqgwg16suTs36saRNrOgYLwvoa9ustqMDW+dppb
+DQ/janpW9V6nQXRsCaj8aOkeO8o+DR5W/B1m7NlpdczJqD2vOuM8jVM8h/QgYOlNs9vc+avcctB5
+yCI1M9SkalL55KdSpwO/yobOnDh/0VxrCTnKiB+/Xw+c+i0SvhGR+7oN2/1aut6lnBb/BMh3vM0Y
+c7cYxKsTSnFPr1rNlTEPCT6mUol3j2TyM02CY4xYXkEGHe1fXlAsXzHfAB0w8kHcu471tLZOvm8U
+L4wflPbLQnrhORjW4D6ARbunXM+5mY5y3oJupUEPZKRzmu3Wmy+WlsTdKmxv+a4dcvfPnOveq+wZ
+yM12veJ1K9viTRvGcMsxhuidO1rBi+kWeQLlE1oJfW3eVwxQWN0FhorAzonblLpMqAYGHZYbZXTk
+3MstjSw0nA7PI12TwfaGQIlz4poHec6KWVdPemSEa65buK7jtpeRoDHAwALqrBJARUyeJwhEiSuw
+YxQ21nY8AnPxPQP1RZQLiuwu67Bs5XAo46Gtff53ObqveOKjj6YtpvRge874YKaL91IuujhZq2ne
+olrUL2seOZdiKtyPWUbWU4OE9KCHGipJvgQrgPTRSXTQBn8Kk2+HvrJ+ukFdtvd+WVQPlTUY3wrD
+9sQRQ2BwnR1vYXivpzNrEeHPQS3qECywz7UliB6F2rsreFZ+dsQ5j3qJTJHwrfq7jRDM3cUdeuds
+Tr1K3HrDezjOtBvs4IeJ9+coMlMPOw2jin9CoBWjlg2JxOoBifpdnriB259Kw5vJ2PnjT39W2b3F
+bkmnnBNe27TFSGLBvb9aTbheJqyBT0RuGAZrA4oLLsYx7lIHnkU2Ns9GZA17sMGZwtRMym20K+M2
+EuSYcBk6/W8TTNJJD/lC0bpsHoTDLs2tNwsfqtZrH8iiEPCremw1URNi1q7Tcfwy1WuBySd0Q+pX
+h/otVeyO3oiov1NG4B2XsC2e4aaat8kP+qOyNhKK4csrS09/Z/Y1vvlqqHekokpYD5Dg1+BnhJ/b
+PwMbDj/ygHtCm6cmMZGA32pT1Vg/mSu3W4jJ/VAdwa2mJqPHnSm7cqEyHjDGSaShT5N71La/GlXr
+ry4v9THP2dTiMgvSd3K36bFp1gfVAx7WDT3RsxU3KVaWzm4w/4dAWCG9PkaVFxFW1u9Dng6XynKd
+r0FEgH+nhtB6Y7aWxzO78DcTVsCPVrv2frUq9YVVT1yrIg3PfZitNxgi6ET50sdW0HwhVXwVGGaT
+QUfeXe+Z1UMj+/EwFM6pbo2XAtJ6Mvq6UFQOtpemnndp4VsPiiq/RNtqPLiEkPgW+H0mpZ8Od2bu
+Q1IOiEsEtAAmTaXNh2H2Cmrumy4R8MPOvMMkaR07P5Wm9C9kp2tEukK8haiEMc48d9/61nIvGWFc
+JpNbAOGh9KgHozwVjKwPqWV6L0XpR3u2qQi6hrPe5spaHvsyyt+aue+v0TS3L1a5tkcvqoejBVr3
+0LSUKkCKrg6KRsDLUnbTI8ZtUGbhtEOfVAfeM6niMkcOspzXwrHgr0Z7+MVbGjl/oET3Ejb5vqjW
+g5eKZJrDUwsmJjeRSeT33vltVaP/SEw24hptt4QB57qbj2vgq60wwEmfiKRkbxgsj0uwDMlsMSrH
+3v3eue18Jc/Occdapxw8C0xdczbu3dStrIeGB0+jGW4X8ab+HQUi+u2kCjSTO4o1aU0aIoJMmtcx
+Ii3IPN/D5RGM93Y/8F4qIV9JQbrJHKJO7Lo193E1pGn+MU39em484E+Z4E1M1NJjgkzNNyDSQBa6
+AvMXIt0BAj0VFKXOoYrUJK771bL2dqWNH2ZHbFw4WuyJ4sx7qylMbESYCKZB2zeI/iBJoABh7mqw
+IC7Vt8Fsxr2REZ7vgTNcOKDO32dlTgeSoXaML8nbZ4Vqf41mkJ6KZlyvmHD9uE+XLAHC5O8NAolJ
+3gKPAbvSc4wrhuhBVmt2GM2me8Lmzul1KissoVFxcY1sOOW5HT1H07IcJY/r2ddIRspVSZH5+uLL
+2okhxfrAD5V/9BfHuJguhd2twgw14VZKQBnYSdHAzvI6RAYxRdad6KxvGHRe6yB7MzIIKn20nTN7
+6m7hN945Ct3Q8pen1JlFLFhVdnozV6e5XBNhWMvzIDLkzBEka1EQR5qnjsmG0X9d5zZN6oy/aNsG
+/M1K6ezqYvrtUGS6H8gTJYU7YzMK7nr0tj200xnIZkgguRket4aUXVCk5c5b/SvvCobngUA22H2y
+kFk8eiv2S5ddTXrFDwpHWJLnwT6UPf8aHPvOCnvzfaya333RfAFm/7hYgkFKVuOFbRrcGV2gk96E
+BZRiHuP/mxKvxuXtV84lzRbuKmWn3s0h7X4rS2kUmcGwTpB+/biurSUOSrPcA9XY0F7u9xFa/t1Q
+Z83BMdrg4ADOPZZjWT/TMKA3VqREZB1fFaiJq9NocRCdewyMEB/a0ij+26ziwQ3ui5V0+zRa32wn
+Q8YKw5JFuf2yyuksaYUAX2EnC43ju7qm4ptugpzoHaj1SNGxYEV1HELO3sG4vhtxeD3Xvc4OwkOU
+M4wSFlTltZdlzKMzkBYefnaV4+hQ9zuibV7w24FwHkE8zti04mk0LB73AZ91UI0vxJbl2aghmefl
+DEQGbbbK1S1sgq/YfKsN61ntMz/dYb1LwAMtw7nn4zBz19OrWo8hamrSZ/V01wcl5HnHILDv30ry
+2nt3lfoEHygeVXH2XbxizcrnColVN38aIZq6ularFhd23enUSl2/kNXPz9tI5kwiIiPeponNGxYH
+O7gMoX3+VA3+X0r5i5RiEwFhEvt/iykPH9R9H2UHAuOvmsrfPu5vqopn/mGbW6IHJxhzfeZX/62q
++NYfQG6YgTqe/ZkDQu74H1XFARFF2NT3IYShmP1FVAn/MBEskctRVsAHuta/kxECSfmPosrW8Y1G
+g4TDVwKZaf+TqOJoSoUg64bxOA1jfUoLiWK6KBvftV/aA+vuKIiAljoogHaAGz9jBeWJCkOBXz1c
+hXrKQ27MMc5PY1c7I60yHp0QIK58N8+SeoXDclyXNA0fbaARZIJtPcbRqMVjA/PBjK0KvhnhmepJ
+LW0B5ahXWH9z0NYon50t1+9NMQ7FIy708VeDMtwl4NCI8XJOFVeXiUW7I1Il31Or16/NOhHvNIMO
+WsfYAB9Hsze7a6nZqo6V54bhY65SG0xcwEhqdsz22ZKV1RytIm1nuQu4/hI2sSQ0o3o30iZV3Edz
+2nJpGzLuZLvaKvKCEO9g092yRCA9jLK0WtLMpl/ezwFsjTjDRG8dG7TWglNsuISHmtKpnDgOwYVr
+3Ts6Qijop3HPZXaFQWJCnkuU4YvxAJlujeKhwJdfcZ2sHLGnvkqKoxWagGc60JZb67dkonDvjlIv
+dwZeYvenLMqO22xRCcWcJW2wqDvtYj/aG+cwbrem76TEcT/cuCQt67GfpWN+p9Sl9r6SrSzAZEQ5
+c1bshIN7g1M42replhG54LwmFkNGmCC5iPxhvATpVH6pgVZ8EMxp31LOJGRZUjtk2ALwCJUhc49V
+A14EXclx9ly9hpJ768y+p/vmxXFmHRNv3wdrxI9s5yHSRFumeR8zdfI+9GIU4parZr4FDfmNpqEh
+RqdOzw0wF0RNXQpFnNhwKJ6J+zFqikcxsqschqrlEu6EFHkRQgorOmeUTM09CYDCvzKJGSMOjlxz
+DiqUTZQEXb2q27rSy8X4iGO8Js8zQYbP1nGD8DTYTA/0dQHXM1T9IT1TvBeUo3c7sZjS20mnC409
+qQ8z7rn9cKuq06y79IBuWIpnICKisbvXVo29vhTVZMA5QLAYYl4W7X6gSEaHlPNJnvSdF1no/evC
+raAg6nFS4TT3JmLN3HCicNnsy4mRj++OuCulgyMppeloRdFcHkbtrFl14fPTuZO4lrW+UVgl2dPk
+1MURf+qjOy7fAo/RycpA65kYCbPUYUES5DE9dVm37It2YohmU5rVg5PRqYpVP5I/NTl4ULttBmuB
+fgiKDgUuLa/2qPOvhrHo93yZ6pMTaX0YlGofjFBxyyi67ieNOs/txDAb60a6j7oQwJ3XchvruGTt
+bTJk9JblMLqd0oGyWSBW3Tr8tO/8bNPJTju+IouEc3DSPikMuiucmsCt0aXVxQ6G+TYNvn7iDkvn
+eDbuhrnPn0JVLS+g8+TzxAm8wVQemUkYmluxVlqS4gOffh/ohrYejhfQHn0Nh2aFccZLshhvaxQw
+mCvdUNV7ciDpTWLHujdqGJ8wz4f3kJAe+EDGZpxHYewk6DZkZKbOvOfCjvvYtTQeMlZQjgFOHzQk
+5iJPXrNsRCvwOqTm3hHL7xaJjywyXIIqwdyc9oD3ug4mVcQTtIcLaC0cayDfJfQDoYpaleVTzF5w
+A7yRpTNulhzkJTAr8wypZcPIrrQT7Idutot9QMrqdWJQSQWQR+sDj6udS877s3PqR9w3+1k5fNdl
+YCyxwZkiveia1F2cQg0j8hMEIaSwRnD73JEzKjZ2hFWX901twSwTC26dikZe6tpYNsn1QX1Aey7k
+n9JhMHtWgxzEQUaTPLjR5FTPg2nBA0y3h5Pce2s8pB5L105GbjshtEsRPHWR83v1C9a8NkxM1FL6
+F0RzRXmMwvKUTz3LO2OjyJXVuXA60hiURJieAcWoin7pAHkz6Qfu2o9pZVfsMxHh7P1cVMv4VJKW
+GQ4dBv8ozkqIWcfJhD8Zc+L0zqvhuy35kNY4FkgvU9CdVwDgzX5ePSsOddFfufBjCOxwjC8Haafu
+d8d2aQrylhBUGtM0NhI9dWfDHeZTpoY0x+sgC5YjHcwoV3Bu+S23ocIPM8/i0WRC2oX0QdzV3lKH
+h8BEBj6EZUVTCnMAP9xb9tyTkzfL4SyB94UPawZBcTVmlvhZaRt/zAJ4pOLmGp5WrnxkfIi5lHs3
+LEPi5KhioYOcYrj8q7KXwbK3WuiNZVkxdpv5FZ8oRwPX/Q1/xetMIJAtr1q9n6Malzttw9A7yqa8
+pfSdvHdgZ1TMIsmDgWgomndkN4rOWM5NQKQ1B1tiJSMMBbF6BGR1WcK76RbDP5qsD+WBp8lt/Ti3
+0Uq3CQqwGaL55TbQRxG+1Iw4dhv+KZ9KQqbr/EHT4POU5c8W2JmLqQa0jy3szzY+Ob9q09zuEFG4
+WzwP7ZS8KegjmhobYseSG2vjb/WLEFe1UlV3AtGrfZbGkBcgCtUOdzrGJKILwjvn2g3UfvEz/8oZ
+PnfZahhLNIh9xjRQUCVqiL+jHH74szl6J8samx9dPVHA09bd62KFuFP8dCn9sx5atlzIn9ztIskF
+/aCZdAI7UjhedtJ12mc7U9ogV9SrfA+LyK9iDCXDl1UUVMu4BU05r/gT9Jeh8zV7+CgicaTObzk6
+nA7Q3XXg51fQpC333YWwxlrlfOpyqOvTMOMU2ZvN5k1puWL/rEGVfeldrP1xNlvm7zXv/GfbpaM1
+RmHP46KcbmlhJ70mwUipz7SnmSqJJlsgB3v5heW/3E/OzN3FdgWbYgGabGoPqbCiBFZU8M6c6hTM
+thTwwSJLI9FF9lM2boIGIZzqcVnzL8Aj63Zvrt5uASUM3QnAzy0oSts7qzWsT/4UqZjL8XWiomm3
+dDPOppFDQ1bnPcxNvH3llwp6yx1DMvD0IAjDr90EY3rPsyvA5UhdNXVczGtTPq3Kq0sCYenKXwik
+TOpv9IYGGonYT4Spho7DW5Nx1JvhsBhUJ1aldQZ/PNo8+6JJ/MbqQrARHCm/+104PSD7yfA7Saf8
+zcomFfKtmqXBLxCy4jHTPmHcwuJxNju7uMOsQI9bV9rUFbVp7kNbnjbiUGR8pWqn3wO/Wa2WTPVm
+hTP8JX00RgcKGEVD4dGRK+tt4LnyW5D2VGmVJCOKuCXxusIUsWASSbcJXUJ8s4tFLuU+Cy+MEeiP
+AW8yjXbFujlOPOKuu562O+e8ZM703HRN0R3yXPZm3AYczWKiWWlxzf2WrZb+UmLHVJIi5Q1R4ZxF
+UKwEfU1USarg5G8irJQHpuwfJRkoH1aiFOsFdlD+ZXKY3vXCWH9DHl2evQCbn56JXe4Wk+0hFsHY
+OvuRGPQ2ywvqO8Ku9q2vnehunBun2ntIP9ahLAZxgYNRmUeLWYL9WJXFjGaeOYYFpXDiLjutXQHv
+1Sf2C9gxz46BKKW60yIPOaCZthOnXvkiZo9XDv8HHjzMQF+Qs/mocky9+wCTxs7BUwN1ZRiac6/H
+qGd/ECxQGKWI40MSs78AIRJHH3UUPbRQ9aM3Gc5yZh7AeGLty4+Rk1dwlJ7be8cGhpw+2uNyWLMw
+VrP1u3fzhYo+qqSGcj5VoHJAywT6SgwvD/gZRB+d0G7V99wzzPWMwkBlVFb0B7cjPnywikWCJ6w4
+SZ5sPhIdP1P3XeRn91lqb5ON3Kvk2RNVl5EtL6J5F4ZBHya+552RZtrL0MgFiUq4XzuoZkuCFLzQ
+MArL1z9KNlpWQ9fhmLrYS8DrgyqXVBy7q2tPV0t3MryUAt5GCPpMA1k1qHI8NH5coXni1CU8G01J
+mAt648zGyGGHWZVv3XdBHe5Bjc3rSTRmn/MdjHgzOf/37bfFd72j3boDRsQcDCP5LqYsNY1XlBJO
+U3igTNR9hoHf7aAwps7eikTwojyRVhA7MZYxGfWhPDO+jUcnLcgq9uIOI5c+DcAPYElFw6+gdbKY
+tky+yW5UzvX/pQ5Z/Bz/KllYlMT8K6XjP5qPtaN/4X9/zN9VDv8PEjrmJh+gdpgcjv5b5cA7EtBI
+ZPkWEbXI+/xPf1M57D9sm3KoKCS1h+fI30Acf48PUeTAdXbr+MFKiOkk/HdEDhSTfxQ5HAYM5Jfg
+oGyaCcUL/xyEmYtI4DkQbCHN9DVXQ2Ws+7ZfXfudojS7OSltFpGVaBqwNMYRUfYp7EMA6d13s+XM
+tveFMBjISGM8MHLIRFJJ4q5/YsQYiw9LZN5FRP3kPOTtxn9CqRD9o5/Pg3UHP4YCZ4NYd3bW0vKK
+pF8nwHO17g1syOaclNPkP4/2FgV1+7k6IjmN5OW5bqc75YVLQN2BkPn3Foq58RzmXsR7kRlboyfj
+vEM1dEFwp5A5vhud6vgkec6w18KpkeG3SqqqtfpfgQl8rVrYUF4Lk9MbZEi7KBB2FhMcdqkgXRMj
+tG333nA3QCS1LswupwqHKLtTrl9XqFJAHSrCf8vR6EfLvbYYkC/lwiXyx0SvDLKLEuN5kt7YbFAt
++v26VLKvlSk/MblVxJJv2erkgLRmtk1nWvM3qBwwJ7nOG86lJW3NNp+Vy8lpYYjQn03IkjsgYyc4
+k9zKC/il5Wl0zOY6zFh33EF/a3E0IRp1pngeVF6VdzrLeuNhRlybL4W95jnD+bx25gsXdxrPViTb
+/BkzUZT/RiDig41utPIdRYADJ9zl8x4E95aCAwuKvzgoe3Lqr0T6UZRPtV8EzXloUIt/WDPlEBzu
+6okKnSq2HR8CJgxOD1DGT9s3+nL9tUxigp3XwVCfDrAOFaPqooJy8hUwPaZAtzUamG+lGvIfri05
++qtMxLMLJCLtKdqumY38KawxZ9rBbCDI4HWXPhoKJk97p+cGNjHPrOJ3VXvbjk9p7niPcdhtjovG
+S3WmajYVD1uHQnqKOMmDnY0q7kMYhoCcPMlxSKkQ8WyGqBZDomDlED0s5V2Hlz7H+qNaae3ELPXb
+oA0Bbbk0jXcxYBN9jHxsi++BFcLBk2We2fcUYDo6UZUBd2Qnh9kezgoNPv8Z5NK2VQwTGIEBh3hZ
+w62rfOdx7BYnmLDCG9XUbx6Ubunfzc7nSjMvFkg2HbGPcLIuvXgYBrxSnP3Hu8rvnVsLdu+XrYxG
+x6WsqlufYWjY2VENoWXDxMyGq/YBD/rO8AaZ4MXHKBt46gcCmPveVb3P4LF048adqwdWgGE3OYB2
+wIoljkbOxEjQnF1MUfughrKDl0Ptmx5tpuR7ONNO4sYytTjOdfwGaR2pD0xkOHVk0UUSrX5yOS/t
+l8rmZI4FQklx50W9gllQsaGlnF+M3v1TFEuZ1G7z1A3jlLilvBOrvT6Zee4dnD5Ud6E9RklZuOPR
+jsz+ofUHrLVTgyDrLMY1XbS9C7vqUTbyh6WGPua0VZzqedLHBiwTfwWzP81O+dTClDnDsrlOWymv
+GWI6we6enpAPV/pyzUcqBarElpl1ylNKG2CBC/9j6kGND4sHv1GE1iGTNlc/xsKIHlHjuPXWfBhc
+CFt86UP0O4650dM4VTffTN1ksWji25lYaQ4dIKE9ZqLsbLthfV4w1AIgGIoEMOOHkW51JIPL82tP
+sI9kVxxmlcPK3kQOvYk3kZycYyUFuSF3KYrn1cc5PkE82QWY7ne0jkmyRJXxYk2T9Y51vr5Sa8/t
+d81YU6IIqHoFsNlsJoak9RJiXDA47U9G88swBRpQpxnKN3BS373ed86aePveQdM9aB3ND5E965dJ
+Tv257eXwkAfhO+2+1sma9Hg3jbODOX0Dqqd2e8dYtThLpp874cn2CLunOXcBjAb2gB+OTZftkHvL
+3WLJNOblop+Bt+lgpFNxlIoZ3lpm4TXgsArJsyLg4NVedCrHID9JL82emtpdHp2sQIzOWRB3Na7v
+s7XCJMXGMn3DE2Dcd2ZwoCmZGaHUID0as/7SSQBdYrCcK0b1PvG4uySLwlrXgrt47BeyGxiVYRuY
+7ZA9YSbJv+XNVt8jVxBDrT55ixvErjJSzOYzx/gOvIVoW/Vo5k1KhTK6bIOHKxajRdeMDCSD9Qn6
+DZIlsZTOh77ElLg+AXSdYnscykfJVeqhZqF5RyHQl7QPpgu8CVQASnvY90ahPPOosBq9oKTQm724
+ZdwzSYx4NbNuZX8KMh9Eq2ng5nLXJ6RL+gSAE9+HdZU+YyZ9gysVXOllKc4hKRdNFKdwf9N0ke/H
+fJgP9IfpOF9VegjWfLxjU5gYYyyG9dIwSr0uuPYamNCW+pnWHkwsE7QV4B+Xyl7WmTEJvKY9TxYY
+TmiJAEMEJvo4Ejp88PocmmoRDMGfMjIhbQap7net6UhCJLAxuJzYLgxtiTzfDdLT92TwacnFk4o0
+lVej6T9ivZBvAyMkDuKizH71ZdWfas3tb0ejwnDMihrDvmOlLwiJ3DaHPgTy40UG8sBgKjaIQI9X
+w4+aB+A283lemddzanAfihmtymjqX53igHZCX4iiXUSd6N5aGAqPpbn+qKeAeE+v3j2aPgBnGuW4
+A/9QvpL8Qq5kQvNGdnHc7HthcA59PLdhvZQf/uDKi19SaOy2BCZQAqabKYYhrtsAh+Tchfz90F9i
+qtcZnzRtdmHkk14z1T5JYuYxDtDHju+5nW2KyDG8bm3ap2lpuOgagghA+nsVbpW0ok4PJtP4cspU
+7JhZ/0Xq5hYE+itonIg2qaa/ZA65sLBfuR4zgk48T7e/6VBqt+nNS1HjLrIMAHnRWEjgwcGvdXs3
+lVEBxQUyUpJCGbmZrcVXtWAvxoF5hV3B3rBppgiQ2ApBHTtixFnQuI/aLc3H1k+D04hqi682MG9d
+w+WYcfobkuTzbMOAdaR5H87uFdPFOS/C4dXteXu6diwZ1c9Zd4B0ZzFXoNmjTlvOdZo1dyTLlWut
+z4Ma2dZLBlBuXgCPt1E+WAWDG0mE+l67w3+ydybJkSNZtt1KSc0RAkDRDmpiBmvZ906fQOgkXdE3
+quh3U2v5G/sHkZlVnsz8EZI1/FKTGIS702hoVJ++d++5b6BHph26uOps1kWFMszhViU6OFTLbL83
+Rkarl/EEwS9j3Z3kYAVXxB6LrUQvfGMuFRii2GNhqv2KyGV7jG9oWIF56lvvYmi8bNcgs7w1IeTd
+5LXVnmRO5TKmQ3WWNTGzAdXhU6Dh5GuvZiORIR8lR01FKI2GE+4MgAjvyNyfp3rW59JDEVAilzsK
+YTF96KdkCY4BM8NrQgadjxZO6BwJh8nVJgH0sa2D9Wk3ySpICXvs9ZWHRhDC1yjD67yjK7WtBVHe
+IMKrSI8q4Vci8kzsJH364ahlayKjTDA8XLEs8VsFFpMDBkjJnWlWEIYkPD3eoJpytrZCCOwmzaEi
+ytl0tokHpT7zyvJxjMlhixy6bvyEOTHyvXbaoXzR1jihWvTYIjWIZTTHNNi9Pa0n+5Wm9lxchG15
+J1OuOzEO2MHPHTfslgwAoXez8OKDryx6WDVBaM+lrQQDTsNSPv1HhO6b1utCnLFWyHQDFTSivxhQ
+VbMDfIxenBgje+RAPKdHnz3+5FhlDZEQvl16dP1gHM5x1wTXntTqdaF2lue20MJ7kcF6uDYHf2ZE
+MATk03h0W94ExDF1NQ89+XHmElYrrg7aA1hJzXiF/mCijeDRCwOKIxRK3uJT34x2NlyUjuH50wYP
+VtGfHYae421m+aI/JdDiq3tql4r2/gwg7btlzwkSi3RMKabyvhzmUwYe3r1h3BQTFjNQiJcbh9PF
+VqO6w0kaBp/zOBSvy1AwUliMtzyGTR7KRR99MMhRoiv/1ssQD76zRfTJS7K4sjuFY03VUOiQ1YO5
+Zio7eR+yoVCF4KhS+PTStH0wkK4n34huzwuCJRBtIvKB2gUmMEDisyXWqJDnJVXhey5AphF+RLox
+8pmQOcFuhH7GyK2jRkFmPCekn5rEaUepSJYfJdIm9JhFWD+NLmi8K50vMwbPbFxYne1gsttXzGjQ
+h5AkYZO7YzIwX8VIXF6VVaPaNJM+VJ8cZh+CxPa8yGv9+t6nYXxwbGCVlnzEy6zGUz+7C3/RHRJh
+Y9nkEGaQwc6LZaLToeOHdbWuQzBbCHhMevB05H9gGIBg5uX0Eh+8lMyNXQP6PLWPRK8F81NtAMZk
+tloST4rWiLolauEOjqT8oO/eMRDpFrnpSpyzm6xtarTUcdj4Dxx2dPxNEeglNqZqen+fOIao8S7W
+dKYJbJhMo9tRS6bqmS2xInYjgI7Nj/XkYiHvNV0GupQmTT2hosp8rXc12k+eiMpaJySapNeQqhcU
+5XUOaQ855VLiXmtwEhJ3zl6sDr2X9d+QSgcNBwDQldeoq8V9gIAvg8Xdx77y98q0m5umcoz+Xcgw
+R5QItzjfhg6aVTrQ3iwv1Kz88mGguTlHIONk92Q4nBufE5km7RHmue63QdwFF42JH/CEDsCkPQds
+8JgvzlyffGdAIgUCtFM0nceM5qxbognYJyE3MbKBh12Hedl9ECZq7hy7rV5GWIGPgKacq6wV1dHt
+jexMPYID2TKrH2lIhM6EVRcWcZN5w0c7d3nFTmd6/RWuDYvzfxXwaNQJJtqdG5bt+LPzRVsfkK0T
+4HKQgyL5a2261i6pYwFsulZ5h4byYd6nhlgIynDC1sKZ0loDKV1FG3tM5+TSrublsOgZ+UBuNzjp
+uK6azsjqB2EjrRgCnjBjHAY3Cv1FX3AMTe8RlAmDmVhCnAJjs9B15Y3vaaxH88Z2Rs8G28exkPLW
+II0K1Kj/St21mhAQteFIsDOK/PJ/kLP6/z0tCHPWH3X5Nm9J+vZri8/+/R/8tcUnfGjHlmniIIEH
+5CEy+a8Wn+P95vp0cn1eHDvEmEX37W9CpuA3l74fkatmIISP2OiXHp8FQBlXWWDSeuc2m5CQ/4Vo
+1a/wHtP11y4jXURyDyBireaxX/gWPHRTmHiUSaLok+0yNcHT1I3s5E6WPPxyXW7/Ylf8N/yst3Va
+dfo//v2rVfL3jwptF1iQ7YTgt/7+o0TssyMI5LJeqTTzm9SJ+sKwzv/6p9g+Si++DCfir3nuBNa3
+HLUTPDWJ7UcITZpLAguGmz/+lLU1+3eOzPXL4PERePQshGrul+tmIypRGeMxOgquOmYQ1i+71O+v
+3V66h2RiZc7k5G462n5ElnUDMMS+xziWCTCX85/my/+z2wg3yrG5i6TLB+uv+8ttTIPK7ugIEf40
+cyQnlqG4mEy/2qdFk139yVf/Z59FjWLz4BDi7LhfwCsrQiDzZ+5jkqnHPseMUNfisMT50UvdI1Pi
+7306grKLT6kTP6BM/kZHFr1ps8O8d8Jm/mfMEeuLGM/lZgCexmtphrbl/QVN/cu3B9zp5U4gcX1Y
+CjlEWekpP2Ph7vUuyBKNsLxtK6QXDPvse2uy03clewO1yOBY9u6PL88/ecphMvNuIlwUvL9f7kRr
+oRiZ1wcj6TzyWblllw5hAn/yLv2Te/B3n8L68Ov9jtVCKzAjRhE9pNpM0KkjqZYmaomWiP4nXwjn
+hsNZhS7fl9utlEbhV/BC9YtM9nZIG6ax2aH+B5+CEm8VfAboM7/oKUMOfQX9Gx6qOsu+M2nW18Zg
+ePd//CnrT/nVR70+KOtqGwiHoTAL799fNkP4shlW10ae4lUcyoYZI418uZNogi/NJs0v4aE0ZzFk
+w9O//tEYcU1ax5btOc6XL1iBs7XGMhzoDsrkarJc4kSlZZw437q3pRFCzPU9j/YfPp0//uR/fCIZ
+CTFmWj3qKEvCL0uVMUoPkjlZCCTdtVcoWepjEmp9/ONP+cdLG6wFZcA3NJkamV8ubWK2g2c2CFV7
+u7nHtvA2OCTkLShIMg30WHZH31F/Ap1n3PbldgZcTDvkwQTk4n91Ng+JOcq2W6N4oHZxXLQgG1yF
+zdJVx8YSBJRqzk9JxDAX5Oeg80zADPfC7PmPv/pXDBlLD4dNni16LAzkvuKZXIWZk8YI3BiP30Ks
+EpCaJtaukCMj1g4N6h9/3j+51HyeY1qWCxDKXvmBv778s7XEjrQLTl3hkm8nuDpHcDME8jKPPwIm
+f0yAWhxxtYZ/co//cdUJgFsHJnWkw5NkffngZHEyGCrEtuLCMYBX10aUOzrcN9nc/8mqsz4uf/+m
+8lGU4ybIA9z13pdVJ2mqEV4tePYKDyoxLTGCvR0n+Hnell3lvOFlsgg2UQwI/9WVaA2fWLPueZpN
+ZjBfXxdi3Sy4ITZqTfCahgraXZMjOvrje/j1+7F1cu+4e1xHO/CCLwt4YBcWc3/pb/o4Nu+ncFhz
+jnva+z7eq6ye7od6/pPKKBRf79/6oTw3SNcpG1kCv1xUa+0EOqIIEataWXHG+6wsvVWrEOmzxPY5
+Xndd2pHRBTxpwgfccWY5dXBSw8csnsvySmc6s+7DGbxYJPGa1ccsGJPuoUg6jpXTXGJiJnm7Is3S
+zc0MPL0Xl8ZxwgBHkiDh1jSYOPiM3xmwDLa56XoIK7d4v7zVEanSpf00NFBcsWlt3YRXYd1hRFFK
+JNY5l53oFaAfU4gbR5q62mtV2eQgIVFv7YuBNKD2yqb/710ldQ2PpC8dHh0GoXzJVCy8HHW/OvyL
+IKm2ndW54RpJZ4B7ly0XpcrALW04YY7drSSJbkarFS58cMgMaRe6RTxfOhVO3gcBVjDlCEccLk1E
+RrAIdZN03rnSYJSjczm+uWEMm8iELg1sGKXIa5lO+N8ggzvzLvD7ttqB6plIjufieFFJp6tSG2Np
+lufeZlnb+D1NZUDCiKBgL6UtASS5Wp7RnS/jwR41ipneCdMfoUFYO/T5ub2pe48LpMbWv+yWlKa5
+ynQot4th9MFFCAroO4FqvrkLsJwzvAsrF73IKPPuB+WQJs0wo4E43lt1DkdoR7+tR9RStc48v1ZO
+6RE+GKakgeHP7ZOTmMTUIzMdXKRL1dy+DqpB9VrXQfl9pB36gZiyXhuvZWlF61OSYg4Y+/dxITdp
+S84f4QXSAu11AZc5QSlVOO715AYaWz3IujvDrBMG4bJBpZzEccn1DmdjD9UIlIETjBW83sZiGEab
+wpdbxLHez0ZXSFKT3iKftEN5/mZOKnyA52kV+Cjx15GBAqFuixhMZfTzC5r+CIsXzP9mSZhIlRiA
+CeIsfk8JEKhRbRNYEJWEXn7PWoA950LH3dPKVMIEp9LciuKhMZ5HDjYPRecgwg1LR7wAacbu3c8p
+7ukUk/dzG8ekRk1mnz9LfIUJ3L6qcredLdPxEkf+eG2WOArwpA2Egc7dSLAyfdMnL3EHJp6+kVzH
+7qpF8m2X1jbRYdxFXXkA2eA1JcSCaWMpDmQZzg/uGk28RWHdPQb+uoCmQT3FuC3V8tKmfv1JWgkD
+LfY0r95NNL1wPSFAeR6bvDOJnjTLE6ANlx62VXIZs3AJr5pWiXLrNTzU+DimilXLTP3zgqQw3ziM
+uiF7FTrv2Wnh4TM0NqU6IG7kaVzBIOpIBATrSYNYHzuvkyLRdgrUx4Eh1vluIgChgUQjrcHy8tHe
+5vFM24YwNlLloHATCUA+B1z/0u2HCOl1+yqMNvwWGKpQO6NU6bgZtbDULmYeUG37ysRBxkmrfNLp
+wpgIPBCsZpf1QYHPcOckQiCGPRFp3ZpDxgTK2WQVscx70skmkkcTuowkRywIqBwtyvrKMvrpOYEQ
+f1MCG1lh5B3T/Ya2LAPQpezEZkriZN40JLOp7dwv44dsLZwAbiyQHvNrJecma/RzycNjHQw985yn
+1rCMu55UiCMazp4ssyJ3f+KkBiQPm3vtjjstLKEytIya4kJUWNjThkccilyMjWiWJDKzRiXl3Vyn
+brextDVkzCBs8gjgTHi49ysPu8w89l6Jk78DPO4JNVo7zBPuW+1icT+ZENKmLee46blFjs/NtRk/
+RgkD4asiHDEYQ7cGItzQOnzGC2m82B3iHuZAcSGjaenTgWcbicR2znBLb/WQLLguiRq8JejdkZHb
+mzl5jXCijK6sLucYE/y2NUid2LCo4KGq3Xp6ZMyBBHTQjFT0GhE5c02iEraRw35EbI+pU6YPA/Xy
+GsZaAYLog8XamplA8akZZsOwGDr1jashXUyfHk9CMZrABesMUgquYBFjGcpl7/LEx2a4rZzVlZos
+pS52AUMqnAx2ZRD5MWdkGxtG7MpjGAd4KnkD9aFytZTXYdaV105LX3QL8wcZS2Mo9x7/OiJVx63Q
+58S9bNShXYw5OZox2LbL1kbB47mtKPY9kP04qotynTpORNL14WTrTSsrO9sGOmMarTvE88ByFBKb
+CoxBttGWGQ/QC5CzAhRAweeGMymiaTHQ8RQumRw1Op+bHEcTTicWiSLC9UXeDN0HLpGGIsimvupx
+R0T8IVGhvU+0g3CBuHgjx5Vt3onswbKz/NOaMsKK6n7tEzM6U1ZkqnS+d9KmZPYl/NmJ6Mj2xVF5
+S3VLnL37xCOPJcMxmEpvkJN3uCnSRb2QFpDiiqfdC0cfIy29TS/gD3FTJN+TbIbu41tM1IeuA+nS
+OyqxonLJmSIOtc7dXdcojFtdbDvFGZmWYEweyOqbrbx1CFxIGwl/6CliwCvdLY+zNsJH1qJSbMm5
+QC4SG2Rpyc4U7zQPDMSUVOb5xsbPl20U9KVraoffk5y0+QNrQH7HY++7u9gddXukJcYqbDCGqo8K
+hAYd2yHj2bDLPrnHuQybDqywYohIV+GRQbX/SUNo+Zk66xu0SPjHB2XjZ0NrkHky4hfSdw5bn7H1
+wDOjea09zz52hWd/ougNnb3NaMyCVChLRkVYAD9IB2F+jTSYKWJfxsV+EJWfbbUgKH7jW5P31JVY
+Xzb96jffQHcBAGia2nmSWLdg2tESPg5TI+uIrS+4hnMkrZPknmR7V9vmwYv76kD8WGfsOWRM7yJt
+PXGXi4AJM4Q8x4iE7Hx8wK7Dcu4YqKE3A2ItiFEORiDGFGtwZl4YxAI7Pmq02mVwinm7QLHejqPa
+BjiVW4AGpZjYMSjWNrM/+s4GNiHIRm2O9pOnhGjwW1nlDyhKZJdWreRyOU1ePi9VratNM1Sp3LVo
+FWKWA/TVuwR5UXNDEJRvY83p5BgJE2nAGz+rnHahcjySlswJq6NjMjzcK2WF/MiqqH5MhHJAUSME
+Fld7jQCZF8WAFbopB211L4uauURxVenD6CX9GzjQ+RGMOtwWNWKCR9TRh/KKMVc1HlC3+fICcUTs
+0MInnf1s0lr66BrbSbaw+s3XMPHHzSIwiW0HI3bMbeYCcN0s3GrCc8mc3empRAitcr+56OvK+xnW
+HK2Olh4rxnfosSuqSS3jPUim5VvNuOJy8tzmtm58NBJNM6n8aGboXCLkF0h1mNw0iKagr0SVKBPM
+pPza35Nah/ZFl3TpRW7m6iKdSpZvFMiAP9iTLWpGZi83HN/HrR1q+4ixJczx/1f2UwpImzmb8tNv
+GSrLu9pjAaNnMpjvi9ZruLAxBG+LNSfUFDoXzwGgWpQa3TSMEYhbwKRWkth3AGrRP2lu/wVxbMmj
+rqiYCVda1EWLZCsDFbDoHdO8PGCY6JbTqvBbU5HZxU7gC+RDCqjkM+6M7j5heHm3LLH1oIKh3NKu
+dsiHSqeB+1N1/re4lIgiB6v7hCJa2ptuzBwKl9AgPbonO2ZjKzRoWEKr5LFNQpStcVZ9R/JodfvY
+SwjRYsoSeywj0rviO6Tf+3lyXvzJGADemuNiHzybJOzDHAb1w9yOKYPtpmlviSfiHfR4Inn285AZ
++tLgc2TP7i/gzbjfxzwNP+k/1W822g/3xuL3Z7Uk4KiIwKroU9o2TBWncuruBha6aou3M/nuYqAn
+2aa0kW9RYKCmKVO2fNeYH0nekfxRNtsdtWZdjnzbjtF2Sskhr0fbHKAwQGrMNklrunjjh4Y/pbVA
+rpgJbRPMC7Ewj9jDJobKlsLJ49gcZZyKMFSEZqN/p9MZySg9XBOva96jNsT7IAIoAozzdgIsqs8k
+fc1LqoluYsELIbTy9432R1qMmqEnf/MtmxdxoUOVfqLbncOIeBJEG3pcsBm6VUKuXDuSNYUKyVYP
+NVsgzipX6A8MUcVLb+CE22DF9vkRXescOP4YDMxpe993boBdv+xHm3yVnLYBxuIQJnCPvOk+TQdi
+54SfNTdSD6YTBbJOCrxJQ1bvZOk3SG/imsop1dqBjAFC4MFPrfzeIf/5s9V2cCUgnfoksLbDc9mk
+fbxFBlze97niWhEyTbwUKd4+1iAjCOC/hTxZ6MRwUHPgnBMKMFZZoydbmjTblGLHotJ8Nww7aS9L
+0y9eOtB6NjurLn9YBYykTamU/ybmxEwOjpDc0VrV4nUxLZ0dEsocPxpJOaY47N3S3xmmi6AVKpSr
+o65pBQ0+N3vWUrAI4j9t/KORpCNmYVw014M79u2JsQZuqzIN58OEWARjZWaoB0LOyzOVGgEnhu3x
+6ypqABmNWO0eZq/guja6H+5lEHTpHvelJs86Tb0rzq3Ju8Jm8jJom9CnHG6uGZVO2yDwjO2BbdYo
+eMitdFBRKI3i+xzmC9VL6mdk5MBi+kAI7OH+dv0io1ZXgAgTVYTprnQKOZ1VJrJ8l0qMsS02Eqzp
+heXLIx5jvn4r4+Euh92f7XJrrURNxjLfc17HFLOZN//gJy9vGDoVub/JgqR1NNGIb4lt18XBrzOE
+d2GHk/MG5yhHUnbNttsMZa9gUBOu+9gEnEEjEoDUe93iNtsYYEzRqqLtEtQKZSr27hB0yX7M5eBv
+F7Pzzw7tjuHSm9qY02gJO5ZVnBgDiFG+xKXlhNmb0RGixkS2U9uhMPM7rzU9Tn1TJV4DbRvBsXVa
+5L0aDVi+caH0nGeCFUJIySVZ12hC+a9B9l5+lonh+lHT9IG3g5onn6RupgtUHqjhgiTvLbVHD5jB
+6q6XWQBymdKZ177L9DDRcMgaeZx0FrziVg5egAmqb9jDi3swOTQXaZFzTsqJAEq3RVkm4zbBE/Ax
+2iPVYKqKjmD2pfJQO86U/riFYkH9nFXirIZgovmCdB+BFsGhlOGTmi/oXIx6ly/hcD+jxLpHPuZg
+aNWaY1cCa/mbB4320zUoQjlkjTZAc2KBCPv0i9u+T121k6CG5RZZ+eDuCgK5P6sldX7CJ6NT1A1L
+iInUm4eb3LJGTLicypbIxYR53WE1yjdIb/uDzRkL5x30Qdz1tHSqPa9Pxq7VapLkkAyX2baeEPQf
+vHAxMRFBR7E38WgjBQFBJl8cHyJztDCMQwZC7wp7a2mSqqbZs/G+jr9XkE5suFtpTEWzZ59DBjOM
+ygaY4OnwY3aLlnNh59uvs9I2wrB0yH64jYvupWLtqSMQaKneJB4iX5HnT2PMPSGZiki2GRyutR2Q
+TiLy38PQG3ErxxhkKZJkqE6exG3GGXRKehpeyXBhVVhweYgc9e7XRvwmyLG744XGvMph0Pu+GAFQ
+HX9Q4auoKYHoPeGi27TGHP80meO9IGim0u1SEYMHY/qLHzAx2L3LwIqwr/cU/93I7hbT/44QGSF8
+Urxma3+HY3/gmtVzGRbj6wTTTW0c3SHmj8cKIUNSdcupSeryDd1sdwv8ni5H4jIxQ8Bni2uS6NDB
+DdYk4v3QVF2z7zh5kR6fZ7KIZvZiYA5DL+FIJEyWsjUQ2/38vVX7v9iWX7At62zolwZ2RIzzX//0
++q38/I9/339+fKq34t8iIh+/+qD+8m//KnhwEDwgWgiIgPDoMDOT/m/BQ/AbE3M6zzZjvhW3wVzj
+b4IHy/3NpTlthYLWNIwWn37430xNFjYpRrz/Dct1/hXBg7PqKn4dLTgmzip/VTw4/BkKjHW88su0
+2JnVEuiShgZrE/Ya+ACj/b4G5iYXiG7G9qOpytAH3ecf2qy9jAP3sNT23hL6AghLDy8XcKQ/N1FR
+vCofupBjnkwZXJTttK/q+n7JuktVpeg6OVDk7buaaqIzCVUr8uZTB9m5jOE6GuXd2IQtvedq61oq
+Ys/dd0KpKEZd3Qh3b4bjK1K1wxwnzzTGD+MQ3ObFcok+Nt/C1Y44yd/2jXtHi3WnknA/jCXITVhy
+oTLYfNRB2um+LAj49FLz083jB2mIYxWQ0l715qGzw9extQ5zZp3tufkUvfOAXOm6czOioiix/PTo
+5DM4CYjhxXSybL0nPxQEL71y7fmHSjSviVOVm9SNz1yZM22c/fw5Nled92jn/s4yqBn656Lz8YTR
+vxOLOlQsex3BrTky9SAEh5rx/0Ii5SVcA0/ke3funyozucAeUUc95DeHMhrzQkYgsZN8FxzePQeJ
+Zx45AQUGYQc5mIXWIBUCKl9lEBk8/pznpyXr4UMYW3JDT8hzI1ZZ9qH57DsowDqoTwHdJzbOenmD
+Ybfqqjc9LAKnde9k9k2TECGAwXGw2Wo+0rHOFR5dU943JnCU8UWm0z5164PidvrX7EkIy30kizRx
+53g7DVc+GC2PrDhFLcR37X25yyCWmbgxGlsdBRyGqn1V45lFfQeqrJ8/pGtvzfG+T54Zqcz5T0N3
++9pXe198T8gkzrOzUdzbCUaB8LgY+kAM5dkj+XAysp1HBwLxR0hy3/Rg++WOLgdkH3mI84JSyb+c
+MDMNkuZNFk9b3032GrIQBc4R39nJ972XPGlu5eLCmR2PKQogK82iNOQOdvFzDK+j6KprEA1XBAsf
+LOEeJhCZ0dC4e0sHJ96oE1S2fcppLSgUxhd17TnDoQ+LfZPHh9SeEchlNE3Kjhtn0tFIrtIp4Vvl
+PKRmcDGGSGdd+6mxO5DJMEAWD/WiFDALRhTvdrGbZ/GRBtk+caWNM1jtrHC6LB0ctKF5QP3Xbto1
+7pu556GY4ptCiDNY0oPjxVtQ/JJtOfnWQlmm/jriPkKmXjfHhK3swNjeZ5yTRKYUWOn7b3LsXwTa
+nagr6LyyAtyrBC61pCEtg/ZiNpuDm8W8fenL3Nr+iWzLk9W7720Cr6fTHmiE8o0eSLbrFAVmpk2g
+dQEiDY7qD0E3v9eugeY/fWDR8bemMT4vZVsgGCRxOyf0se/dbSuxhryQJ9kuu9HNkVpvg9buvhup
+EwyEoozHAFfaAU3uezh0emfkY7PHnFTgtLEHQg+89ybGfckRMLsu2+CjWvLHaSRIHBgUZzhtwjHt
+odkYmGhyElU3tpHRhVFDuo/HbrjPmuWxrPlCfd5eQGAis1vBKBqTZ1aevZL2bqzEUXp55IbfhHtX
+P+eqiApY3F1AFeUtW99OmWbOvPpuKfZ1V++NvGMR1TvNF8TAcWuPw16X3hBVofUzH7rsVOTiNKTL
+rvFjHYm8RYkWHyWY13jEnGi7u9SQ1Uasmc5gAp0lfFCGdWEQ4bLpM+fCHcVWWcBi4nSyIyvRr75d
+X+XeeJUCogBlepjrKaqr5WcoOPyR2mpvVOtFwvX3EKQ+Kg1H2Q1PYQhrYahuPaCINFqrh9FMj94o
+TlBhHo0gPnhV/FJ04X6U9CokxuzaPIJ62XZefq39/koOSgE+WE1mtBAhTR0GhvLLvASb0AreQUpd
+4m+CGRL8wJmNqj2/Amt3N2XhyalLcBTLq2t1xS4siFT2ZHIDDJxZQyPCXQn2iyxq+qW7MDfDq0q5
+i4hUYTz4fnnlwgr5yzD+fyugXyogdCQB8/L/N7juUKf/5z/1r0rPv/6Tv1U+7m+ssRZegNBf5Zyr
+OfyvSQCu+M1e7dj8b4JH8QVRFP1X5WP/JgDW2Zj5PPQcFCW/VD7hbw5aJcb20KctSrR/SepJDfal
+8kEsg8/8d3WDhZYrWPU0v1Q+lpPAVMslSBm/xk2aYyFsTmM3gXH1vTG+nkiXXkFf61aHASUPdzGD
+5p9gTrK1d2clH2acK9Y+N+vlxRTy1kWsLiirc7ChHeuTRXeVSexS3uEQ6sSdnIJhOTLLHcJzDGOG
+rnW7dWHEH4idarEFGxDv7J7polkkLNHwxBhuNOSbm9NHBkcLTGbfPM06mM/kwuvPBVDeO9FQKaLD
+stoFk2ANb026LZbLbmJPXneAIN/hyDBJxnWcIZpcIKU1mGR0QrRejXMnjPFH5zuJuxkDNmiALQmM
+NmNqYrVhatgQpONxVbYFWWo7z0NJSss69L95fReE77EXc5xyxmZUO08Zqd4PocWx06BDoYkySUZ1
+lZUjTaXRAzmMBRdoyKqm0OpjQWNQEecu5pfSdNMCAAmHsShsM++i7Ru5HUQI6jO32uTOmS0O2X4B
+jfKlMgASVeU6FzNTl2nOArEMRaNeKazGwi+9cwwI9hEKdvwCvw/UMm/M3vLZwRuXqQb8mLMQW8Sk
+dDYuJMM7jFcOwS5sya3r3YJX4a8Y9LKqh8EV4wEnBhE75lDf0bTdW4V78prUewE0Co4J8BYt7dy8
+SrCFbdoJqtgblqMnpRHY9zDesCkLIpA5fhvbGv92VBWTtYUowq8IDX3TGc07RhkeQnvWl2mR/UyW
+5FQ63R1qkCBn8mnAlqKbaXbXTctv9YEAAbQ5HLynMFMffpl1+cUYT7BZBFyUeMt8NDyEXu3B+Y2L
+lvotq+Nq15Rxbm1oLRb3Sc2UmOuUj4+DmfBtGy31uc3Dd4MrK/egAOyYqqIKH4q+kz8mBuopBI02
+i08j7oY6F9t6rvZqcI/V4n0kRJ3vgipjz0SHIL2FxjGhBr2bXKjOvyS8nU2ece0J0PWjLsyGI3QC
+utv7qXR2T75xdjFawU90L8RiuIQM2MWhheun21lCFDPJbjMfcZdfaBKOpiDYFYZ7wCVA1dvWEb72
+YmfGFMF9Gq7agZanRyeXAfYXgxCtPShEWR0WwXBnX/lTeNECOLkKcNaXEbqn66kfLoQnntHg3BTG
+CAyP8dKmscdg2MOgTs90wsguMqowu/WK5VuYibcSaxigB7gm9yR7v0zeVBGZJEX76FeB+FmwY0Ed
+MhLJQyO8vT2L1zJZ43uMuBnOHGfqDwDcQ34C05Qm+9JGxrNZc5aukeVi1mcTG9Ulkez97RyUUITL
+1jgBv/VWPxrjytNUWumOiekQUih3mCwuemtJftS+cM09A3HHhbGNb0vmB9ESPHSStT/Tkc2sxt+W
+AU3PTZXHZnKG/OQu3SXJ8hRDNKvm7HrGzu4c6DE54UXcqpwbx8mMDk9D7YbKqLRbpsUjPPAxtuxm
+2yyJFNtQlTkjQin2uHsXPGm+8q4FbDlIGHTFKnBL5rhOx6pqepRmkDdv4xTDuC7hRcxtMEy7HhRE
+zo1roSCMDa4TjVXZ2siKzjyYIv6vk7uF4Eg4s6rIkU1oIzvN2lKnMRNn6YIG2tdBgOOulpMlT37Y
+OQ6iGgJFsl0yh2l7cGO6opHj4CNkuoFJMSDHoT8ht2Xty3EWtTein1d6hRiH+OYvgAkTJ225zWoG
+kC+jpK7ciF409kEYSdcdtApxYhGy1gTl3jTALdKjuSoast/gDXsHsCASBEjfvwIlvbHM8iVOittm
+rC8LqaBA5uNNgm59Xy0A0SmwEnzk07uHavSu7RcDj43Tgp5vmRGb1id5cMNhMWp379Yx4VlwqL6b
+rfA2c1pLaOYxRm5l3zbx+DgldMPTIvQgSnfpKe/q5bbG1XwwUozVs+kFgCOn6zRR/SHIQA32tUHd
+6PhNxB7g3kDYcLaJ6kA1wAGEtk0/wM1L4tL7AuI+7vkDBlgcYbkDRx0d16WVulX0f9k7ryTJke3a
+jgg0CAcc4GfI1KKystQPrCS0cAiHmA6HwolxIfuJzMiwCKv+5qXdJq2bXR5QLs7Ze21ywB6tmMbE
+KBCqJPyIyzYsvpQ1FsoW+tdVUvjD1lZ1v6dOOdzg1x33PuDUfe9O39NBfVIl4h3qaHetRecVWKa6
+AtFjPmXwmWi9xpvcrp9LMJBXQVzNF7hOnGuwz8y5YZTsPBcXvGeSgkWiDvZsXvHldPbHQv9lOiiA
+FT+FBoTjfJsjkCFMcjiNZsPaeHVcPAdoplZjyKWHXsOu18aEn0PeeKxxvu78eZ62M4fCOTZ+RqwJ
+7LE9UliQgtzFwv7WwrhbuZwqrxvPl+Yqdtw7SszDdVKY/SqvQ2M1JF66lh56F+woKTCXJGmfyMlI
+H3oS9372SZl+iqSuGoQs1KG2ePzEB5ZP9yIu7JFTNt+DBaxi2BI1mX5FhAqJXloATC3IUjM8Re1c
+NBwzvxCf46E6HpEi8inP3a5/6YqFnm1/xRjQXecvHbMhKoEl+CqfniwKMZ8cuGhfGg3nLqyb4qsJ
+MSpd+ePow6w3nEdWDqIl4rhTv3mH8uEK3Ep32Vdm/8kh8uGX7hQMLySrNPhokQe8slb0GFuz9WDP
+btnT0q3geS6dQaghZrue5vk3fVvzwZ89onZsZewh0xq38AhSHyVlXT8tpq5sK2KL42wZWZDLsat2
+W6r1DmZ2JisoYyxbtXeXtZ7xyWnGX95kZw+xB4n02VBNZQO7i/PI2Oo48TYoMwa5nTpiWFZ2GlX2
+YsZcGmNpnDyRk8jLSyzi2mRdv1QOLJM16TAoVCkE/yDxJN+x2NmbngpSs6abVDyjxiWTsnWm7qmI
+g+J7p73aAdbTROpC9RxqkyaDgyihYHzFqQ8qNSI873KCdreVMNLuusq0wbCgXn4cnUb9MJnrILlV
+U5fyO/XU7TTm8EedZNU1uyGz2ExydAGgJIO9GcSMAUJiu/uRSZ3kl5hJw7BHqBA37DyMAL1ApW0m
+zDZb0HAZUNhfg2+yYULj1dEyzysIM7l0ravGQDMDjIxpGYVkAjYBqAt2DhvNWe4s+jNZJI+5Pf90
+2/gLzEa51qK/yqG40mXgns2ROV46JFQS0caSLQhp3BhucO2Z84MTs50yfXz8cvjRmiXBPtizTb4r
+MCZscLYsYHe9Sy1+RaYUUzuxoUy0HOrBUeqU+V1w8uCbQfGX7SrTWeRhRjfsyNxmK1M1y4bOB1My
+bMXgVPkVh0hIlw1HRcEqv26j8qFVZMv4E5W2oSVvs6L5TXmN4zQNLGfVsa2Ho0NePJ92XXeGV64G
+NBgaKXmv53UwAlFdG7aogKi5BXqrjECUm5giafqpydD4PoJg7tRT6qfJtPOqoEFDQLVj5bgD/85E
+14igzaInEQS6R1nhJe7E9Jy5eHspfRbVL8w69Vr56bZU6FsLVEife7q0YIOl6roHw3eWQwKKkeyC
+XMyCljB1k88Ubft6p4rW+JWFIzdjKouZ8mIYm5CXYzA3G1UGw6+p159cetGXzL3iXgWz90BQUOD+
+gB8n7GvsoP1ngdBp3+qq++67ylM7glGdEB2JDO9j1pqvdhu6d7htlwDeKrzD/D/jbZrryriqRZ/F
+kEQzElFniuTgBtFS9beJhcCMrvhU5Pes0Y29TyeHMgPnitT9hESiBLsTQGi6gQQwzvsuRl6xpWak
+LqpSusxVVamJdwgwVtDHBCNVI1GixubFE4DjtKyMXdHZzrMBuWIP7DlZpWzmjbsUB/m2bBVCi9FG
+fHhrldyCi2z0i7WsOq/5AVugor1Sx+0GHVk7rOsXcLZtjG3D5myu7svAkHvmQqfF75yZ02UApYQq
+EHgEoIoYGKs1uhjBamtjZN7GszMEsHOdWt+hF8R80bcTC1lUonVZ2loF3tp5nXPWZcVnU27tc9Tm
+MxBfv75AJJr4qCAbE+GDkcEIp+CIbMQhkolcJkJgSAjCIS14Aa0Y3Gjcf0ilDfmS/LEOAwQ24fgG
+rJJ/yRdeJn8qnUTubdQaFe9t6FVwE1HjL7J0T8ldjlblgzAw1bfSJri0jcbvBAJ8bnnXHtMksgh1
+CjlyDqJyOO3g+dujkr0ME/bU11bYB7CvHaO7trh0cMPaUneJoZuv7gtb3SRm6p7MVl5y5vq1N0qK
+x7KlgxWUF4iTZ4IGxq++Kr/FfaSpZmnjK8dt53dPOmpyX/E9xY987WS0SArpHH4L9AnRdTtQcGoq
+yoGQTR6IUAXaoz7mBKDuy1peAZ4Xaw5zbDhjI92ktrnmEUaocMZhl8PLJU5BrdABYopngkG4238o
+KWJtZrsFekqS27pXrbcCDAZLqIgea6goq7jmEGU0Qc9+D9HR4xQU134RXtkKzsLaX6j0TuRBmKDb
+DSJN/DbcKAAZP0V62rdpAEtIvNDtKYDSoVAv0Hs7JN+mjmAqPrIuWGt0ohDyw6yHli/ShZwvXyj6
+cWSVHzGJzwqtMEQpDkqqrS7Tl5lwcnVqbwQBRQCBWe/9C5KSo18TzO5snVA3fkxpCHk7wxI06dNS
+0vvGIsqueTA9+6sfxMtBfYrGHwN/G5ktzevoQ9NWwC/asPT3cgz515W3RL1p30L4GGh2jb5fWEit
+MHM9YJNAxEW4dB9fi0F68eekW6TfRoIvB8l0CnD2Ew/Ltz9qKROIqSMKhlUSF/GTRZsn24DXtD6r
+uGZ4wmeSYsj3SSrmTRcLetgJVvI8tNJnoJtzsAHGwITIW8C83fpgz1NkckifkD5WG7+vPfEdTX9E
+fx6+9NNI1s824iA2riH9dvmG/2fxU+jIQNLokej1ROO6G28NzuCXw+A1l6BEE7KgO9g0KNCkc/m/
+7dTDlqht2uJkP/X2e/O9jP/7vw4yMF7+rf9bT7RAQGJBMh1X8JeXouH/qScK/z8ksaHCdEz8WI4n
+Gev/1RNpltLWDKg1Wj6ASPt1PdH8D+StGB/pBtkCuZT9N53UAxuaQ01SCIzty5+DE10cVBPttOOX
+U9THZmIQLU2gWPJFzVNBr60OxYPKNAjCzI876L05LOwzDiprMWK9sogt42PnxMXpWYLyvLVUO19V
+Mx3byMTQmRWQ5PYBR1f20eIwvNGiIQxQgAp7ytBADpxoBhppdhiGcmW0rXqOG3Zmq1e14Id/hn1t
+bj9yM9jvWT69q8Di3h5Yq+yc88qMgm2VKbYoue67H4M3GajOxwAuVpjdtv4ngJfxGVMXT/P9TcBX
+6nqmhTrZO/CRmegqXM6TwKsmkVfrjtLivA+0BWD99AUeeMde7jZtc94qx7Fd/HFv73ZRkjNBSgFk
+5rYPn/WUOpwigO5fI+Dp5f7vB6PDwkq9vPdUqt8O1tG4j40ObwbpouZVjWj9biilsdFeNXw8PdSB
+eXO5Lm8ZYjG8SKALyw1+9RZZoXAnaE2Ee6cy/JV21vTsd1LvM9LBL9IU1Obp8Y7cR49CPv5jPPS4
+ZRd1wqvx4BezTkzM4F4l/Y2BwGdNlaRHeOaLv39kvrCJUVwuDVXFwbuReIt4q0uBqU8CoYOA6x4S
+hFU69PJLsmJOX9hBc2G5kb5A1sGHaKEffSEmvLowyCtejqu+XFkIJtdhtbRCDYUondD51v6Fak6b
+e4W59IwJ+Ni4aEcY0qEmgvP+7Q3Fo2DltiMZdyiR6Y9w6u7syUS/WCbx81CJ6sbXsXEGAHHkMfp4
+4WHisvfn/zj4HLTURPpS8UcOyA4tLPnK60xVaynZO52+sUfeUNovApMxVAHYDgdvKDvqXqLtoALZ
+zmyde+THk6f9CxJa8PqUkXFzerxjl+bjkUcZYyK6ORxPDTJSo4+1sWqFd2kbHPdx1KBr8elXnB5q
++ekHU7jPAQpwg0SUA/Tp7bMTHg3taEIlaULku8OUN29Ibo13/2IUGMYuaBbPC17wEa/eTJOGDqow
+ZhOVkousQtQGWLmGM1yMo7cNe/6CS2YJXhRMrz/slhZS401s4VTujnJN4FU+XQgyozny4zk5ZwI/
+9lbgtheki6C2APPwdjjTnL2GgtnyAnZPupsfi0qBVkG7tAL0rs48qGOjwZv2odTAgRCLWOz1xdVl
+m3pOzcfdTCq6IrHE2WFzlZfmONbX8zD3ZxaAIy8GMzJfMy1VxjzEq2TSrofRgJo0aJStqzk2bQxQ
+lRWmZy7syFNjCMe3/IC5ywyWf/7q3RhrYeGL4DsetZbFIoruNzKrfKo/Sdg8nX4Rj9xFbqKwbM8n
+WQux29vBwhHvZBf5S+5WTLmYn6N+lo0gxDs0kMytci3iv58dWbF5522x7BTFMnu+ur4ZOy4qG0yj
+qU7CNfFFG7EEUKK/QDwRUgkaR2s4sxIcu6cW28Jlk0lfe9H5vR4z7lKjLgwEJbLNr2wKjdu8IMg8
+E4jnTt/QI7sulu//P9LBFtSrTfKoPG5oQD+ISjyV7U/M18gmaGXha+k6r/gwzBNRSSlO5XMvz5Gl
+J5BMXiTOuSAEX/rtr24u4m0/j1uMf904d/sZQ8bDDLxto9xWbQ0AzIjlkvDz6Ws+Oqi3TDN8HkIc
+QtmbIhishJQavBPc1CTIs+di8p6JpmhgeipnN5AwfWbM5T4ezNPLQsAMuhw42HO/faL0stABOU25
+KkpFX4ro26Ae889IE9OfVeEU39zCJLndMJtLe8AadvqK3z9l3qKFdcEOm6PL4WRgCkI2nRzZcS9H
+6xG457TK4yaCfqz629k3FgeNam+Nuj2zEr6fhZbXly/HZS1ETnGwtQBSEIBDKEGeguq7Xw71W7wI
+9uPpy3s/KziSvYTwyPOB9nW43mpZ9klikxrMBjv+FqH4jzdd1VblToRj9a3r3ej76RHf31CGCaDQ
+oM+1EdYeTHoxfZ7YpN66KjpqDSuVlO5DQPJmREtOJDvXIb5clhExviHZX+rM9HBs9JddPcZBuWBT
+3r5M2qCyZAm2pWZdxzm19RoeHvxvzAXBgBZqlZThPBCxY1LmHZRh/T599e+nJ4c1BUgNMnLH5vD4
+dnyPaF+2zUwa9ojWjP9+z2oBUwHK4e6vR/JxcZISuQzIQf7tSJwl7GDOWTVLGojlppz9AQ1Khkh1
+5+nFhn56uPdfKbprjhXsE8GfAaJ5O1yLPzUdOxrqnp2rXywoYGrRyVpZaG27rqz2UYF1vh6w/VGB
+Fp9Oj/7+Y2F0zyU0gt2cZR0STbre87K+ZfQ4b9Jrq8bO4qal/def5DIKhQ02wiaMt4Nr5Avxkywg
+upI06IAQBXGHz8S4/BeX4kOqE4xlB4frdEsiLBIGBvGGuX4AQ0qOX2KaOj4zsR358gEiENFFvUay
+2T7YVZEN4hYD/rBVZKJbCDCVQ00oossmkOMVPivjr7eoAJrIGVm4NrAu5cGb31IGrOBJlwhI6Ejn
+2s/v3EgjP45G8XD6Fh57FzEowykEwsdsc3BpRZrg901QXkg5tJdmqlAyWaLY2NOQX0JBNq+U07mP
+bpMiIpdxfeZTODLHsK3jlvqe7VHzOphj3Dwjg9NkMx6OJH6sFCTOB/D5hJuZo2w+2rbhgool1+uj
+SAB8nrn490s0Oy5rqbQtfEBU5G8/xAqMCwwe4CIWlf+vPIzEW5U2H+O6R7SDqyck4BFnkPsvJhwG
+Dmy40OxHmOLeDtzRT1fEjVESs2jcGvzCS+3D5LVknz2dfsDIF/nDXm8KKE4CZoLPJJcanOscfopN
+TOKIgKbg48YE8ktjuNskWK17Oqe2svexdEoEfDZy3B3RnFG387OcvO/WCRD2uVNmfZWdTyonMoJq
+3iW28n+XE/FL+KSHkfY/2q3LPFpOM7qIG3jbJrBBzwLKjOfAlYBx+oS4UWkOyHZmAkiJUepp5BgN
+nZBtwZYGdoKO3T/EX6QU0q26kKime3WL5UNCh9SWi3kWOdMvREnExtD1HIk+wL1nrJFk8cfSPBi/
+Ky/Jf5pOiQkXcpq59NdGzHFF2+KitXqIdqtIC2PaZJE/3MTFmMhrS5qRWjU2efWLmmreN57O3XVu
+ABXHc2La0RZ9Sf3BSumlrPTURE8TvWyEkFzmj64TTsD0k8O9mXtpx5sp8NSVQXumRwxv5d8EiVAB
+XhQB2IMUrPTKzCfUHyLoypvZA4+BabIZt2SeKBfqRWhhXfYAd8fwVCApNNCPqBZ21i7ukftsRmVA
+a8Edq/JNK/ruyuxcstUlRwQ8FFM0PHYcwjqcDfgCYe7kmPkDguAlTJqs+gFmA16EaUEk2LHAhh2p
+hTU8X8uqhLmyi3J8zKWGruD0QdZCjg+qejMkVV2tBzqdH/opkBzwgr57jPPQIGdwsrvrpGbrz97e
+YR5RhdXfqdyx601LIse4HmgXfYQDAqmLSQTvAnKXL00lu88C2Rqyxj5Jx40POYgUszi0fqYarMtG
+a/rQW98d8ZUh2ugAsIyqGXepVyHSwh+fPWjPQg2UNDFgDWzbsGToAbE5mgtcr5tYBnWwGa1ynKB4
+TxjyZndp+ZeUn1Dwq8aN1qk9G1/jKps0YocSlzy4o9lYNV3kkRtRoFFcq6Se+y17VrwtVaKTzz6w
+/nSjoyIwNr7M+x5ZZY1kVuTKfyyUiNt11xvqW1hTdMeh3s53cBhMbhXArR6kl3Qhagdh8LEI2qRZ
+Oxpuw66Y6eii9DXUNUAZh3yzOSB1F5OHUkjXEqzTbTO1H0kp0ti4SVD8iaxNEeRCevu3uZDxR94G
+bgOCA1QSqTl+wf6EbCjygQosiQ3CvswKJ0T4EGvb2iBXatrvAz6k4c88xU69dj13IBuiqcxiG0pn
+qDdh3tX5XpetZX4pRDh9b+umxD4e1TGZhn1kZB9qoN4ZyJW5XVJ9Wo47pNBkMZ3jsGr2g0Q4+clC
++GrAUvHC/EoV4zReaLdOnGttJ1GMdGFqBJEIdTt9icwheYhLiUoXOQG6VG0VWb/qG9P/PJiBtLZC
+FwYiFM/MkStTbTNX5tzIe3gnrnffpaX1UdUxKhISkar4AkaI3WwaEkWbWx9hVP4l0hghtnZaxdVD
+V5qY2vshVL+6sSucjZnOOaeXJeD3t+ItwlOUu+H0rUMeQBZxH08lqmv0uiR8GnZwnQir/T7x94d7
+HNwl0ax1Tuu1dEqnw7PghmAFVqWL2fSp9xB0oyOCTnGZMgNKssTLFudamSe3YzeP47Us2HHeDoCh
+un0yCoH5uVfmZ2PSOlwF1I1pn/OCKxIf5rDb05Clv56XHQIxI1PGfed2Otj2y0tKpxfTzh3AeQSv
+PYy0DsMzkUObZp6wCWUBNXS8YZX1oBYeQuy1etinTdJ1ePCN+EYXlRPvHHSRxnUeFyr5imUnje+C
+wbMBgtDDrbdQwqRDkk5G53ToAmu470PI79/JNCES2zfJ3F7jPi6rdTumvXHTpZOH/ZfNJ/Latu53
+ZkbyyY6O1SgfS/Do7bXXZTmid49nv+sDe/hDmGPWXJQFaUCbbAq7lgcSyvQyMq30pwnXKkGBbCLr
+gnZZ++s8KGlP0/4ZTOQrRi1R04VLLFpdT8ZFUozBB9uJzHBl69khyKWhV4MX2RzjjVtrDMQi7JSJ
+4NLWZBgUQUGbnt4HUUhzXnyVRekyN6SqZ3fSVU2+Hydbd5uOvj3Cb6p8ZAZwSeuwdc0fssOTs0r6
+qb5sQqBfgxtaBnr1IP09tXL67EVDdOuFdnwfmH2xs/Mgu7dyP8suvaJXw7psHZ6RzCd73rUVckjQ
+Canu7mSBpuSSiPMU8iGxNS4FjGkyd6M91Hrt9UVvobIoVbmpbVAzO4uMj3wzT8zO60anorpUdjZP
+mCpx7q9tOGvTNncsq7grTF2g1ehZQFctqR1ySyLkfDW0Ossu5NgNBqI0Z/mHoRGRSjpDLFsRL8mz
+aYzMCbdVAb6UuLAxyT/nsnL8fe97dc7zJz95Z4E9Ypujckw/JeqbiJSLmiwKvldU9zT9a4gHmEGf
+QNB1citAfPE2CvghzJYm7ITWXbIsuwAsD2LCxHmg2m/m1+1Uhu4GDf1ibyayqFg1dA/vUL6xz6hN
+hTot8xSHBIvYst9hali3nqxzyaGaX7e1sSk9WHwXzQ3t9fy+BR6FTqFKavKWI8UypkcygIn6DCAb
+TVNoA0/q5/pzlZr2I/GrbDMwWbcfBoBpNSFwLgEODrw0aj5R5IAWE73zh96HbFcOkuBkw/YGBHLo
+O3lMCE9b7tPOG2HOBAKalbDU+Ch0m2c7TZQIOZKxnYDK0Bz7+dj1eIM7AMYGKZTRn1jI+HtKlhBJ
+SnxYMcq3nLZGHpH2vGXqctOdYGpH1ER7s9+zBqePM0wS/OSd591Lt/bSTa27fl4Xbh18y/g8aZIg
+Q/7kx22DySLSLcFSnRoeiOYxwJT53XgT8V5hfKoTJGOFH7oPA6rJG6KJsi9DP8gfaJzcaOMA0PvK
+24tQNnH98mpEScZa6fYqIyjHzpc3yABf4aMGd8jTU9XdABb6jiBdFPgc0/NvTV0M3K+uaX+iSDTV
+tvdtuZ1tDXBllATdrXOTH7Mas1z/IUWzeS7rvkTd3giS8ZywxeyVd8VmMEYtCD0xop/EryF1HGo+
+GhSSYWutU2VqzFioQeAzUOIFo0zOQxN1A7hHNhHTDQBpMr+LpNUbSCHDsLLLBItkoMmz2da5pz62
+s+9oWLaLnyJY4AKrvuaQfTfOSzqqRMzYroeeGiW6xqzRl24RlYptWKzYjJU1ajsAD5j2bAS6JCOs
+yOwoiSAwdZit25abvkJxxrvkaF3sbYIyQFrUMWGIAy38ek1nl9OK0SLx26LLZ+s5CxKRN9R28w9z
+M6MtN0xtz1sd4Oi+oF3UfGnxpQSbMkTosoFygmrdR3AMg8FszGCTazYMrBkaAkYTLxmJ+D+77ewT
+fkhdseePrQI0PIA5DDClIDbntbBm8Sca0F1uh4J4nTvbwerCHjwxgYZMMQHapSUI/I10jG7SmCC4
+boy55E/XpYPQhwkCoJpk6XtGNB/MW9Ww6cCFE1fOhTU1qcAr0bHLqVSCkNAL9RhcAGiAzUH0avgp
+Fr6hcE2K4rmadM7WUzqzcV2UsQd4yZ/Uh7CFLYKnhcy/NTwJZFWsFdG861q7BB5CNPnNpEpRY9KM
+gSzVXiPNtS/G3Fgpa+6QW7q+8q/8IPF/s7/ji9OhzX68M4P6o0ERp1s1eFQfBgdR2Qqjc/KER8JT
+i+Cz/ZMVGmqCkUgUQWnXQgZp2skHY5jF8590SoOrcsS9vgUE6XzIWj3fzn0+fJpqFzyklRjFhT8X
+EQqiDv/W2iuCFA1QaPu7AgqSfamtKLgeK5K1Vh4apj++2RJYC78zHtcu+Z74QRqDli+rJgcEdEUR
+adIBtUf2/cAsl8SL7JdLMJBmyssSdGsynOJ1R+B5s2Y5Q2hVyhyZqYF9jdRLv+XvVLk7kI0GOWk/
+6wHDU1Yq5LuUUXnFQn45ae0TadFVN2KXqF1ie6ol2o6keHMa1sNggEDj5Qen0tSkvwsmPf5sAyH5
+iuD5aFHM9miDm7FHdzlAJ1rJyOWFJoMHbXBqLPqvsu/HH2bbMHAUEIW5a9KE1zIzWHHYSIrh4zCT
+B/Pg+JFbXFRBjM0XGAgKWK9HhlqWGOk2kmCajhkv9kgrV+3wu1mEfUMe8AOpBHJS0VRZMWPZL6Lk
+og3vUwTZz+YI9wxLN5vcFTtXeIPYSyzN0j1yPU5E3AwOcpVTSFDD79Rc7iNAx7jbtpGJYm0gcEms
+U9Fw0GFfFT+iIV5ggE3NzykTPfw2I8GfRISwNV1CjjKjyzINGMGZO5xkrHbBTVMMhbzBQcPlsM8N
+blKmgY6VesBVluSuJ7dsrZfvEACI3jnF7O+mEPo19D7L+uM1RfvjdN3hoLIjUE0A+8erKXi3ycY9
+qMm74dB0tQO+sCOkEl9BSJrqhRmFNbc+JIcGqRIHMkHmDOCV5ky/6aU2/Krm8c/oSylXSOqrnn1Q
+2fEEnJkG6fMqqoTBbEi8Oochm32x/0nVOZpuOIac84g0z7kjmzL1pz04uXYLaDdcxZPbfDYc3qHT
+N+VFXHHqdy137VUnqjQVWLg6hr4UTireNlaIJbIIynGb2eafBIk+8NjISMwVJDcwqx3OuAzB7qop
+NOcx5XVfTv+igyL7PzcqcKm+kS6CQu3gBykUjmycUkrfBYdkROeg0ENWA9qAbeVVZ8p9B6Wol9Eo
+afJCUEe1+c/by68HUQ6ZRd7UlLr+D5FItlThUAyILEd3/BFmlX2mdHvsNZRoXSjueYsQ7aCUWoZh
+W2WtzwZTlfaDFyKjhormb+FNjpeTNoN9XcY9cWreGeHJ+4EpKDrYd3kDGf9Q9TZ5hpuDLeM4WZKB
+TDl1up3QFF2PyNN3zag60qWU+gCuOtqdfqQHJV1u8tuRDx6pX+lMmMCScMtNVbyp7FQHd0wE432g
+Coz+Qziz2CrLTernQjS2vtRxi9b49K9YbuzbN51fgcJxCf2QEjP120dNomrFhpsvMGcNXUIK7ftF
+fn95epT3LxSjAKPhZfIQhZkHj5ehEydQfE/OYHVXrsUqjt73ylfD8CQd+1xEw/tbS3OT1wi1r6Rn
+7hzUbZmA3UA5XNTMP/1m9EuCdab6vcwGMrCNnFadAYNj5XY9gIXe2p++2vcfK81H5jTHEbbHxHpw
+tb6galQYfD5Nx/G1G8Hz9g4TFa7Ji9MjHbuv7KUtxGwoxVB4vH16dZA1zZjQyg3RcF/maQSanQMr
+hQVpcH4GhCn/SaL/Of5n9Lt6+OfNeC3MPDqig4IW1vrirj+4tZY5p4oTLhzR2Bh+hpNhwHtL0Za7
+eC4fmnDyzygujr2gKElo6iziXTiyby9xQCCDXyBiKm56lvVgrltchbLV5e70vTw6EGq7gBam4Kkd
+dBeT3htUobmXM+4YNm8dG+ZxVGdGOXb/6NZaiAgRhVnmwXo7SL+bs5hRuj52PdjewXyBIb7Z4uCt
+HlrcjmeaJ8deRqpO5JSgcGCKPfjAvYoC6uQvr4ilg8ehnBVA3yiSxrbPi7w4M50ctGpeJjWi5BcL
+gJCCOfXt06qCPu8RUvHqQ+P4nmCIokSWcSyaycJtS/ZH7NH0p9NP7sgczmplORjjUC3SIH476Bz6
+oOOqqlz5CVB9HnEIMGcKV06R7ohm9bHOOAL445RnZy73yNPED0OvBikHc9sh+4rKaBX7ii+9DXv/
+q21lVsqWxdIXhAf1u8iJy+3pSz3yki4zGko12o480uUHvdqYtEPQuSKm+lk4BgqRAbBVbzjm7vQo
+R56itD2+NvrOPvLrg5c0mMJosW0sQo3MGtkuk7a7d+DT4gnvpvBnZmH2XsVWnwZnru/oyKxDZGFR
+H/oHufHq+kI/nSjxIhGpMm1+aSed4RPMwuR+Qhj0g5UFvyN+bR2emUiPfCUMZ7LjodXHFR8sxg0d
+Ctn1jFtk9XjVljjGvNEwHgNcaGcmtCOXiMjKQc7FZEa6zcHqoHLTngfimlcVLTICqg1nP7rAe1ZJ
+6tiPdZU0XzIrOKe9OXKBL51x1JTowG3z4ALduuyDQPONkN7hbswGc/lCcN9jsfzLxJdlDggcZgA0
+RogA4Vu/fUfTpiuafuYCQ5LeF2jYSGAYwe2n39H3X8KiNyEJ0Mdojixkuc2v3hRTU5hLFKo4Q8X9
+fTZk8P7jVJ/ZHh4Zhc2Rxf8weSIgOJg9e+gPlJMDWPQSZGNtETMBS8Q789YfGYWzD511VnC8Lu7B
+w6EyqEcOOaCSJjop9yBXzWpTNQYEh7++aczLFr18dK68CQcftqMF4cUuCpp5MDE0LWazKh6/nR7k
+/aToogr2CZBboID877dPBjcNwcO0uygOutkVcyf8YzoJXB1AHHubxVE9fT095JEbiNCLwhzyKyaN
+wyQlyLRokHL20o7DWbmJ/XpXT+O4OT3KkQuTPtMiImFJoNHhKAOa/IjjP/qSABhslcfyBilduyN/
+Jl4TPHNOmnh8vAX7+GIEOFzXtG32EjBiuXJzg16okTcEHJUhTsBtaqbVYz82zs/Tl3j0Ri6ibhYZ
+FA/vygGFmQTOokycYpDpGHCiTV5189+/70CRQTRBRmbWPTx0UHqlbD2yvvS5GT74I8HHpFJNZ7w8
+y3v29miDIMNlJcFHFHD8OJghFvR4hMumWDkI/XdxPrZrJ9UD9OUWss0AIjvLolFtMGoW+9O38ciT
+Y7eFlNzFuUGg5cG0oRMzUQq51qryRPRlkXt8mftAtLu8opy3cMCByJwe8v2ygjiHB8ZxAMMIHre3
+X1082HiyvbFYhU45793etr7lBgCSG8OmZABLXTsWFdmYDsvpgY+8MngbYFBwBuH7OzQX4QJi/1qR
+zKDjDpO0K6AS1vXw19tYLg8THt4swF8s9G8vr6pH2QeQyeEK+uWefiWaCKSAkk8hzwv3zAt67NVZ
+lmakXdxRBOZvR+tZ1AB7IgXJl+yQ1BNLVycxBPAGmQKIi6Zbl0bZngbK9PHvb6fkNqK1IrKNc8Lb
+oWWiFb1vt6DV4NLxKiTO48nyzqyex15QghvZMvOJcFI9uJ0042oMfzyqwlvwPqVhfHNGZKpTJtTF
+aHjn4gyXX334LS4HeUk9aTE2HawJ89wC8+pR5rhF7H6wJ4GqyffSpaIUJ2Z75pV8saC8G45Kw7IF
+4a+HcrlknLIwjZ0CRneoh1WDeKdftVUw5heuNeXlts/IhDe10/gUfqoaqCyCXQjMCN3O/JYjd3qR
+j3Ek4kazvB88z5msHY8sBmZUtOxr2oi1nnapDTVRRkVxZoU6FJGx2vLmcHrFUbhUBA5FZMWQAci0
+KYKnVhgBcCuKMKWTBHWnXsf4g4hUAqJAekPt4iw3qW19thRnOTDzRLGQDZe55U+LlJvxIh8Nsr0w
+68Omw8+PyCXkeHXmQzt0nb78YIEznL2+idTu0Ew0FkEceSb4hoAvutgmujNvhzF39kjFy4vQjxY5
+lmr3MVwBzBaEi9Bwm6T10eHn9me+iuO/Bhta4Dke68bhe5N6Xa5NGqCrcJ5Rf6FISV7cMsJdkzff
+3fP2GpfmoOkUARzf1DnROYaefISIqfl30tx/7syr3+K8nQhipNopGuCF0Qb2Cftkvh4IqDrzAI69
+nrwvmFCpVjHpHMQzVhPwQCkYJepUvBZN0P4GGpPd6taMrghxGc98DkdWC7ZpHp8kizJq+eWfv9q2
+C28miA6M0Eq6jto2xoyQdSqGM/fuyHTDKIvjlZMWj/LgoxvRWOZjzxEEGYn6GqbwdpWyo+84nM/t
+Mo5eEMc5HEi+advmwWPSKTQPmudUPGqZbcKGhlEDLefMXuboKOAVmc2oqrwX4EYyrG38aaibosTf
+leMo+g2HOHBLp5efY3eOFFhWbfoMS1nj7fMh1k/4eDwZCPThDm9BupGVlo81bLanfzOUS5F22bPj
+Rnk7VNGOLZocHlI9dvW9H3boSzIC9Bb99pA+/4vBkBFT3GP3Di/97WCiwMXjLXkaGODiXd93OIpQ
+wGxAOBS700Mde1bs/lhbcS2yeTh4+RYCktciEuMw4haPmZn4d56v/TNz1bEPF2KAXApPLDCHu9sy
+1x4tS967EgWtSZr0kCIZSoZPMbWvXd2H2eb0ZR17MygjYkETIFfx8by9g04HIRHyNRuTKkNSPBfm
+c5OiZ+DIEJ95WO+vjUIMZgG5WJADvuO3Qw3CCnIwmkSgVoB54lA9Vn5zhfzOuyA9TZ+5sCOj+Yj3
+MQsF7FDwehyM1juQwVPiZ9BVeleLYPQjSiY4f1Y/P4QqDs9sZd+/H0RsWIG7bE4469sH4yW4ygQJ
+hEhKSJ36Sugm8hzHHj6cflxHR8E+wmfMOc47nJcMQ3sjNBvsq3WUff8f9s5juW4lW9OvUtFzVMCb
+iO4ebGBbUqITRZEThCy8SZgEEm/Tz9Iv1h9Y994Wt1hicH4nFVVxiic3gDQr1/rX9wMo6T4CSHnL
+d/eVd7cGWFSQuHdwep99KQoBS9L6iLlqqeS1YcReCxUvFye7mtwHDD/LX+9+LKYg7Sp0zT4X0F5+
+LMstO9So3DZowuceUJk/stp7ZzMwRy9XDUhV64ZOwfU8TWJqYwxFSnJzbCycPIAOauSt7TrEGhU7
+G51v9sZq/vNrsa+jscebGXoCsouXjyVgRjlKUu9TpRgvvSWPP+jjZE3v3t09DCE8WsQ9dneu3i+H
+8SvNkH6Ap0xqDQ3g6+rn0gLfhfYTv/eBXORWHsuJ27e53r5fjpQg99VGXbQbQ6jssWq0Fpeo9K3M
+/5+BPsNw7SWeCNBE0anxchgPqIXwPfAjwC8tgarFz62LSU2F9UHiTbZyvwKt2OrCwcIzRxUXXMex
+jTKxNsSb1bg/PiI/Zt1CuPizm1D5e/ljSi5UGSCvdqO6UjaA+qz00sZ87b2xAEcLXaNMTDZIl07K
+l8PoilKmvWYLG2/yo8CaftaWnhye19l/M8p/Y5TTB78muP49o/z6a/d//8/viPL/+Iv/RArhpAJ8
+hGKoQ4oAV1+C5/9ElPv/XMNb2kIt3XXXC85/IYXMf66Z0bWAalN15/NZ/59QHvzTp0XfYCpTU+KP
+nPcAhc6mI71pz+kSIB7mWtfwzvZmib4oodkOp05Tk5Ea0B1TBxu2v72RtwvC/xrFAoROKgG0wLmE
+p4n7Fo1s1W9QDgE4HzVAtPVcPiWcPhG9hdobBeg/n4qDk7fn66vpDWXhl7MfpzbSbZhU022Ayydg
+yZnUnjTe2ChfGwUIEukKthc+01lsCuE1yzudenNup+YD2bzqOLTzEr333TlEbmz70F58iCRnK7mj
+FpQOHhTKGYdSD2rhjPS26BwHfk2g0KUb2EN8+vuY61f/LTXC9yLiXs9rSupM2/O4IKgtAbhMdeQC
+a/OEWyc9PH2Rc9z47huP98pQbE821/o1z0vn58tPZbaV3lQ4+22aEpdDGdTLDsc/HI3zqnxjTzyL
+Q9anoo2eFcX5tl4mzmYFCuna12rYrTLr8yOtSu7BdTAOQjoQXE20Mf1re/y3MohX5seL8VjDv19j
+FQTkxpWM19XG0h4qI261bS7xf3n316KnnLyIY65mB+dRflz5CzhmR5D2FKkMASjlKhqycXlC8y3e
+GOy1l/isv4LDo1O3OZv0gYD90OdKkGAxi2iUnfkxdUlaIZZQkTu/H6jER2MvpCeYdQZ+YX3Jv+UC
+gL3GNMBAATfK0d7QsWNus8GExc295v3r2UV2ROesS72e+vL5UJkGOslgqBSUkd3Fzg5rruSNCX+W
+g3+ehb+P8seO67Vdb/BADqjPNPWSvV8o8ZlYzL7EVFV87vzxy/snyO9Drt/0t3doaI5TaDPqRNXp
+ZTSYJazrfKGZEAXyp78Ptb6js52DoINMP5HN2hJ/tpxxE0y7BdviTQvV5bpoYF/jGGq9r+L6r3fI
+ZGcxA2kipnv5QLET23B0PQEuiWZNa27cXSYbd//3Z3ltqgPz5mBeT1vgMS9HoSM86/BnxvGqo0gf
++mA/TqVbxb+qtk8/BexXwxuL67XNkFfHdkgDPIXRs8WFVJqbi0uMOlDv20O0e6S+/Y2+Xm/790d7
+7TNR3tVJsLnrrexsRnCbodfeYctIYzinU9X7kY2RwBsL6jxVyndCHbLW92FAcZCcVxBSzc/G0sHU
+Vli4Hfa1NYXOAsO9bdtkX0+rk7vr7GNas6mS0JS0EZK2ykXHzPm9z8sVF27dijVy1+nz8lMG8NCl
+lJwyRo39900Ncr8/ptZYvVXDMNZN/eUCWLW3xDpI0Rznj37/uU/81ABLhS1FWtAgbMqdEK31qZHd
+h8TVsFalyr0lAW+Q+qETlCoE0n0vHIwhOI6Qq94Ihf7cbrguGqzIlQykU8Z5+eSTIj7S5Cw2re5P
+1mZKgoomgWFKrAj1ubmiwqV7248DhNu/v/NXRzZXpBkBLu/97B6pZBssyWoTM6WGjMakxHFXxBp1
+uWSjgscGhH709xH/nNU8628jni1YZVozLXOcTbOF6S9QehzNaHx891xiFD4wL86linq+LfgeFlxE
+lLQyK7+j64LmGmkD3Pz7s/y5+TAKZD0dHiO0xPPEZ93AcOo9pLxFEri3DR0v2D6jsNLHMv82ZN2y
++/t4r30tpux654BryWH7cp4g117oLeBYouBm0ygnfO3CjHXQ337VfwDVHAw48hIFvvGcb43rvxzX
+Hamui8YW+JvW3UUOZxdv0nH5QJtpdzEiI4KBnRtvbH+vvdw12oTtRwAPtuXloDPeGQIlCC83M5wv
+9BDN49YMJKzpOqBhLUV/+PD31/vnzk6hAeEhqXkia4hKL0ccaResnT4B/B1DgXSF6CKUh9jK1PP7
+w05CaSIY6g2o89C6vByqoM2ymFybDMM04lZTLONuHpy3gulX1hqyiTVDRJkGKcH5vpKYbj+TLKcz
+Ck5yaGVe4dJt0GFY8fc398q3ejHQ2daN83DT2JhlbjSvnehdox5d5N6NLgoHPfpbqsb15bzcvtd7
+NQI/ZgelrtVQ7PdQiXWclWm6AH+Wen9Kfa3aN3WlQ/Z3/G3ruRI7P03D01gBHH//UiBnbpt0vbor
+VfPsw3lA4pcC66PNog3YIQnHxL/FHEPAJuII6BDn5DaN35IxvDIzV1ASJwRhAPPGfPnE3EncwTIm
+4lHw6pvWCuiMM3K8wnWAHH//lK+s9eD5rgw6F+XEee7LBwvQ20lLQJU28sIdxXisINKcMqzdDkPs
+0W1biv7dwDrSfj5NCyaBCJ1M56WWLhXmMmDTvrFG10yQaGT+isHoT05jjR/ntR+r9oMeOoTM3vii
+fyySZ+YzInjDNjkyzpcijVN1KwQ7SkI32MbUa2tnGp58N2IIOSDJTSouVOX+2Fu6GAuPaWHOLtlg
+rBAOkJ5cccuD1Xr1G0XT156I3YXwEzAxA56tD1BlJCvbAYILjU6k8UdteQLTX77VnfHHrOTNrRVn
+PhmZAW6AL2dlhke6P+ljy6yE9dq3yr7Qy7E6inns3zj5XhsKXQFkb7KlHLRnQw0TtfymqhhKJFSq
+JATpdlGgRHR1+Pv8f+3lEQuxBAwcl43zM1ZUfopDZksi2tYz6trEuumUiu27R1mPGZYXLw/I6xqh
+/nbbwxM3DeCtsYWtpnW626dYR+Cj9P5RVn0j027VQARn2waryPCTMkZ5UOCAS+ZT+yZHnF/eWEGv
+fBwkB6tamEIO58z6z397GM+sMBNJihXyMsa7oQAbUVgyD0mHvCG5fuXjvBjpLCaoGyXiReUthH75
+mXKBta2x+Hljrv1xmFGFJTXJA4F1pPvn7K0ZmDZUDXW9jeE2+qXIZ3FXWVNzDBLHXjbNNM/7v3+m
+8y5FkoaMiGsmMi6UhggqX77ARZR5iUqk2dhJwAsURhpBVwQQHUggJKkTp4d6lskWU8RgT0+j+UtT
+2ql36naXWlNx+/ef89pL5kOu3XTkZhGPvvw1qe6khj8zawovffJGTcP22pVv5PleGwQsu7lqIMic
+nr9kABELUmIHvmzWYVqpJiQ7UU9b9zsFcs/vlmrc2uVEQxC9qS+fJrYL5PGKyVnnuPSgJXNXRN6O
+1oNDPWhvwfdfeyw07EwehMWU5872qXHuUW7Kpt14gxNfFFKJY8sOGr3/CwHIo37qcmbBVn75TF7p
+dZZK2A3xPukumzGttrODjdq7R1kpyqg1uXKQyDl7cwX+OUWQIUxRk5d+LKfAxvvaSd+bJkLmRvGE
+PNRaSyGJ+PJZ/EVqg7bO/SKzqg+Vwp24xV7kjf32zyzHOgytZ6sfAjXh55TAb3tU5S4NDlkeerox
+zi415Vs7Q2AGNQHScnX50Z+c25ZWO+a6F1+Q6z65Qdu+cbb8EVvxI5CCWpQI1uaN8wvGInS8cRJ4
+GIsrTdiTc9rX1/bs6PLSGSccmucpKLNjJymav3EUvLKpcRMA1oobHvUJ5+zAoW3fAXsTQMADBlyE
+qQ54ZGqzS8vGEGXsY/7z/bOH/hTyz8gxeOnnK8H05mrR2UXsNMXSqLfwa6+wY/77KH8ePeBKkZ7T
+6LMqt86vAuSbk7nz+KxummEv4XvNUdWLd7RjbNP/PtSfb5ChMB2mLsyIaDNfTlT2SlfvHN5gUziZ
+FqkG/hgwrNS4D3rL+ZHSVh2/8XRroPbiokMvHCuPUI4OGVbg2TtMC+HMicDdFdaVFsFqdD6LcVq+
+idErI8OozW+kQOaLFgPYQ9WZ/dPfn/jP6Urln9sLOgZa1Kg+vnximMYw9yY8NHQaFqLS9X7QW/zk
+1CSnBOSnzWi/FVH+uX2uI3JhpZJGhvX8zt9PWZ6ZhgB2g6vU3hLjeGCpvCWVfGXSgCoiliQAI3WD
+e/SLeIWWPq+osVOkESMWOwdgxhAGsZF+QqRkvcXCZiqefUUSa6vynBIxAQ+qjbPXaEiawLABRJRZ
+2aV2GNmuf2qpodXhqPL+btbjwNjMgamCrZp91V7C+GutPaG9yDZUyRoRLRqWrfz9ghIa9yrzkrqf
+JkOiV4f2L7zZ5TGwlrLYTzG1ztPk9062860eh/WVvgcDJC9i68SkVskpnqa+PNK8ajSRB7s5PSQY
+tDmHtZA07nsRjPV1apd9i2VfXGBxXOQYWGEs1vngEGPjseXwKcKupH8l7KeVCd94K+2mcOGw3Tq4
+l00bz8dD+KbXK6OM/CZJDFCQcAfjC3+Kocv4VTGrPdCWHFoEhsk/sCmFhACsj1hHNzJjOdnT8EwG
+kbBXBF8zDrkZOzLy+mI4TnPvZ5Gdm0ByEuzRwF/2CcwhdEpcDRQ57Wxr+E3XbWFo5t2hxBR2hvPr
+JKCq4aOhADLNJdhM40gMgPZFr08aZr42PwELhD1IrNnFUcrKq7CBYPcTCKH1OC8VHbFjSyQX2Wll
+6BtIB8O0dvhP1Z7SmMknXBryIACbYJvOkHpliJVuoO8kSUEEkTLIktPozZ5DDDuBGNKnJZ52fIEK
+JqKOjWuIB2zi78CzwFYrpsXF5h7mTrWh6IAkxWTtN9tRNpkPR6bqFPgiaEjAjJZnsNHyDDmyn4FH
+haN6eUw0uiBWOh5QpJIu8xVnGMseFVlX5zCu+r4M/b4hIBIrW2kOcG3b4uAJcslojAn8UpoMMuLy
+DJUJ9wF1CXKGt9PjdQm4qVaAIANcjh6ylexUTfYA9iQvF7XLnuFPWVnHXwfgbjbe5IAV8V5bUVEp
+nWunPI/rX55Q3b1amVIp1LwZ6t6KmrKM2qvDqgi8bTEKQ2yHlUtldRliT1Ky5ZPrKG7tTW0GH5fC
+aD4WpZ9ae9VZS4VEfqjKEDLTCr/i2OcStzKxlmc81hJ76SN0UqBZcoSfpfy8/AJSz7msV7pW9Qza
+Sp+hW+BZZ64AK4pLKGO6tsmuYiZmxMC6TIW/Y9EEnorKleZViho3SOzOPKS2K+/L8izQX0At8xvw
+HGrcg7YGDjY8g8LagDbqbbPIzt04zzAxCXW8hy0FY2xuk/SXs6zgMcrl82X8jCPr0jn3wg4KDiZt
+1lQVO2ell0EbBMuI9ThQs2pY6j3NZnV6J5+xZ17emxlUzhWHRp3W+pUFFekq+xmYpjViBGKGLwYW
+3PbY3+L8B16Ny4954zqJeMgsicZsfEaxLTDr2q1IVkSb84xr03MNdBsrpbya21bHn3plu9XPmLdM
+10C+aTn0t9mq9Z8FjG9gpUvXdV/APgXzVyJxp7pI43xIdnOF4PWE27hoLzWnCMpbs8hKcWnkjRNf
+C5s+kMtEH9ovi22o9HNSByL+LgckrnemAFe44wv53o3w2DoPdtwWKKv1enJPQ6Z1oIFYJ05U6jgo
+X9TSNPG9LGJnPHVN4EwR7AloTDH0WCLqsnAT48ihM3f7DuNSd1cIL433Qqvin7kVTzrw8CGNI93q
++mrnwZ8EkoiDKlWiJJuDb6NRGxplfk7s5BAbGB3c0N9h2ictJ1rfBbGdu9t5xhT4GMQwBK9BnlXu
+l3UiWD8zW8466KGmw4IWeeKkzzcFAWL9UEH5zO9qtYjlxAlgk+O357gsPseJP+g1VqQ9bjg4uXC4
+IWx0OuyuD3MztfEM69PPu180tidgxOAvWxfZXCq+/KRn7JzCKfICW3Gf9ofGl5hP485rxbsJI7Ek
+1PGW6qJEWjxUY9ol2QM76WbzQx93bX0BamEM2CKb1r35F1mJp2UjJlgxg41Y2WmYQ6c1sW0+NA92
+EczmTlmFWj4XY5IA12zx09zq5PVINKZJMX5wDW8072ZuH6a9oU/T9C+7ghafHV3I/hR2dlB1V4vf
+U/SVRaXN29bPYtzIeXP4PXNl+pRY3nyle1N7Z8UGzV+tRbvApql69zuUZCKXKXZIocIPwRoMD6j4
+cbGWfsKqvmSpYlSuNgTyLWRbqZv1JVpYaayWVD4+jo6hXeP54mhR4Y8046jM1FZCWjo9pJoxBNth
+vfpti7hMPpaayD+mpBd1XK2a/EvllXQxIlfvfs789RIaVUOajv7ylPdjx0nBXUQgvLIRgX8l0VJ2
+H5begykKnHfJQstrqf9yVo8OvptzcKXANwfHWjP826Y0EyzBUjmqzYgh+pUj6Z2AfJGySXttIf1T
+7OOzFqo+r3/YmL3jO13X4keOOfxVApmvj2QZj6DD5OLAupya6nNamy5c4Vg0X4DXj2LXlXlz12hO
+Zm1QhQL3KYOkvDY8NXucTE1ZoUFaerqQMiNeQi83K6yfhrH4iegkVWFe+nIipMNkNcx6qzSfnLLt
+zY2uEvExiGvMHkwtG2fcjjwvD3UCwnsuuzRDNqoy7wC5TcWuSKsMe+sgKcqtPZr9N9/CGnMjvWUG
++diI5GnGKhnNORPrwl1U+2hz8YE7UqkkCIFHdI+Lb2ifcZQGd+IuSLY3MZ73P6QxWLeWKeYf2Jmm
+3+O4Ce7wfLAeLZFkdjilifbLGqbxmqRG+W2Q8B430Geg2rULDBVlyeB7oJVZsueTZY923y7fOsxc
+T3aZG+imbL//ESxz853CD6YOtjJp1CPssVawd9aDf9R8cQHgN5j2unK8zyDYU2NbjsCiw7lvyMQU
+WQO7W1pTySQZ6sXc4s4wahszhiO7B/mVf8qmxrE3c9I43/rBGZNdnVtA7BoSf3aowe0BuDoKHWMH
+Il8voraVfXQAUU4HXD3MFHd02oiwsE0K97JaFKVZsu/BxBHfA9YeEwcMHMXAUj5BlCtFuLK38czO
+lDsZkG1Nj48IPQYD3LzP26s4j1NzY6uikeEQx6YJ+BwZV2SDahwx/FHViFevR/Tj0lT+NYCocJFY
+zUJbnddDT1pMfXWVLxwr3ZjYrD8Jx5snaJfwNjc1paCd4wBFwEqnKkxcU/1ql9sl/9USGezBOnPl
+k5UbCU7MBBsHO4knkwUSTxflOE8PoHWDJgyMsr2ChetDHYFVDJ2mH91hZzW9zh0vWIqABsS+UWEq
+McwC9mKkeL9Sc3K2y1i1t04+6pscpiVE6iLJjXBytXzYVLOHhTO0P/d61HgxR8cDignm1AqS0DZy
+73FO0jWnqGtO+1Esunlokrxyjo1VzjF/rtkyKr3RWDYWNy65YW/hXOiXzC53HHvaleli6h156dSf
+jIxL/D6fXCICH1H9xjKBE24gQiePaSI8I7IKLyi2LFI8tseAczdyvYwgKK5r7yIocw9aPIlFGiz1
+dC7DHEHj18GW+bSTQWfCCenThepPUBc/lSMkFvdjntxYs+59tTUDCzHEpfEUuRTFvywYrbahXjv6
+sMNBPbO4BRTDR4sWri+TmQYEHLiC31UQSGqIj5g0wvgdpRNCBMcTO3A6gfvT3Dmf0zn16O22cuey
+8+vipo4RD4apJZPbxUuIflvc9C5mGfODZJnk2LcPQ/oAqCYwI7exkxlnbDtAPZvO2bUSpvk0Z/CA
+cHga5N2gWwnbtx/kWVjHUi/hYxv2fWfq6on+mBiqoSeBdZM7B4KKOVxpbDDbYE+drYlEiikD/XL2
+Xcykv+eGBYdfEpymmxpUDzc2m17ZcBljuIz+WCY/6jpeyZ+pb7a7hg8U7Gz8iUBxSjC9EW+yuuVy
+LL4XOtckjKBpmdyp1u37Q+CVQDTxdAIO2Y65RcTSdaXaKVVTonB7Zd6CD024PgDI9nce5rdHHmv4
+hQkgvaELOArV5IO3WQav+anX+vLN7z1gDkj27DmyUs/tozZvsYUnAc1qNFE2cIzPdrIFmx7cGMq2
+PpnDwuZApJHZEbJJ51OnfGKQAVOpCKpmfKOrPmMXjpvqEAxdVX4wYOx34dhK7WNbcIvdgAzOjqoM
+/ORQKJd7Z65a2L9zGutuaPmFcYot1IqbarHXqeEP7vWUzt693woL+zico39KPZ/uxmYIHsDPpiml
+ml5e5GkJA1TVtndnZu38yy1yOH7FELs3ktj9g5rmgESUyXIdMfJOQ5270D04PtRpBcWAmzlPaxFm
+s9b8XNJ+uZW4L/SbBCTqA1rbwQoDs5B3tCNOTyZmUzD0iVqO/hJ3/okTUPkbDiIT8CyXxmaPtzbH
+1gLG1wyXoehh/dUxZq909zef8qXIxSHBmIZ10CJB3ZhlkMPJzjLpR60xxl9iNYvbxAY6jhZb1ipS
+CHPp+l0wbA19t6vh6QCWKEOLXD5W0yyVhPmZz7uyS4MnM6gzbVOlyhoOc5oFl8jA2vRbCfvR3S12
+uyYJMCu4RaSMyqjoM2iYZOtAzHaD3k1bX5B/3iKvCZyRYj6Vj0CFPlV+uYxAwWWtVwh3CsLxo4gx
+CCUczqcP2jKO3WEuZNztLc11xB3xdKBT5Bxyd4dK1Da3ZawjZV9KmCgVJiTqYZzGguxAgIYmVHpK
+6nPurSEHxmjo8sh1vC3pF3bkp66ZzGzLZLPisIxp3AuBw3HZwgILnxa9MFxtszQJ4Eb805M8Iu3v
+JJd12zRiB3y9di8q3+YoRRXrjJdm61VmCFIO3qhNm1qydxpNPIwaNGxiBT/g+oKNwSNBdvEJTKNt
+bjKbRYyFWkdoSKtG9dmdpZdGIu9VuUnYvzm344IIWdGND90c0ePTZJldEXopui9WQe1/dotkKaMV
+ozuGRpnO9kWwjO0CdNuG4iV8VZq7MfekCJ2gin/geT3kYWlPnhNSwoiPi5dhu4PzWt5dGNNaQwQI
+ljsht2/LCen2TL/05qiRt8goFHC2cJT7UVKXuVmCzu6NxfLBorXAxrEY0ZplKvr7gvtFfXxOH/53
+58nvnSfohEib/vvOkw9fh+Yf+67p++YfP5p/3I3lizaUf/35f7ShOPo/MaNF3EU/KUUXyFK/t6Gs
+tSvSsNA50Gmug/6Xs7X3T5KzHGFoCOmo8NZaWt+MQ/q//odm2nS2gIoi76/TarcWmv/3/3whju/P
+/vcLZuBzXfq3jDT4PtKltKFg/gS5DHzHy9RpbGEhEVtIBbkIOBMBgG7d9zgEjzsjn/UOwE03/pST
+UF+IiPRQ92tzwA9FGMfWnOaw8WrjzrbUHJlJpw71lF9oym4fDHw9viedX1wX5Th8HEYT91+UbEdQ
+9tNaGk/lTWpzX9iwRwM9oiwVKU+H6JzF0nhStitvg1ZOd3Ne1Q9ksNIdOw5eUUVBTybUhE2d0tbI
+ZdzW9xa9Xfe2WXDhw2Sm301jz56oe0lhhNzmvQezHro8rL1luBzHrHgkSU+GVlb5cshS0fygmMXv
+Fq33mGmDF1GduG2CgEPfXur5k4/e9L6XWfDRXub61Lh4plCPceCdTYZ2YbOxEi0D/G+iuE/ccMKg
+41uRjP6eNKF24RbKvhIVjRwEatYjEtZ8PCaLAQrCHoTmfunFOIMcC6xQB+wbTvW8ZkIF1xSb+tWV
+LYv5U9VL837UXKKXZmAr0OMZCvKUT7wxf1qSH/DLE4v9bG4ucQKwuICXI/DlHCksh6G1cqUhFW2T
+ppo/6dqU/GiK9QGZKmO1B4go7qbBx2TBnudvU0YuYYebBenqNLCXi2ny4Tsng2MkJGoVzTcwIwAl
+FzTyR03K+yAvXGOJZBZU1ocg3/qZkfyILTyAQoWFttr2bTJkIRYU7RDqmj2dptYA4yxT6zHJVHzl
+T4lqwhVmc01TJ81zksMUhm/Z4x464hTCh0wQ87DjESC1D4ry+yaHCkvtDd/z64GOKrktMf88Kdtp
+k5AWsD4qaqO5icfE/T7hGAII2BZwu2cjHPrqe6aVV2CUlIp8vzEOYBbImiW2Xh1R9gZXfmmln0fT
+G/bN7Cf3XC2xXB+SYsGEpDO80NHidgTOMMZHsNbWx85wmks3a72bNO/SY23OPzU75kJZTvnD7JOC
+BYVFBG1VwWMrbPc+ngx7ArtiifueUAu/Xq18yCbbSo8+CfkfTSwmMku2UV+6ptCeglkF2kEvXdhg
+/VDXSInrpdo2ie1/aGomKpdkZeA8Yedfp3Qs/avGmfiacpGct9Y4frGwdLhKsxLdbMIVdglHel/T
+bWEQ2VIkc0HFCzu+IkVDor4EMl5uYWn7yUl38HzeDL2d5zuv8HPv1NvS3/vu6jykj0Y/X+j0FEGL
+1gffO06us2zp0+12rq+RlZiDeW8E6TB/iN2hnu+mfED1xpRIw4Dk/DV0z4GfmDu4Hc1VPZ6WrDG3
+ee3kXI3tPNkupZmzlDnivnbLXMLsJhomehaGPd+0lWX/AFMNWXwolyBCFG3cUxHy9zln7X5ZnA0x
+qx8iuev5vziZs6X+kZJ8KA1vM0HArfj3Jb75Scfx4gY2U7t13PiXM3lu+tDgYp5SkZPIxZl9cXIN
+9K4ytkLa1lMz1OtimGMw5PAR/D2nBusSrwUnuZ3q1Z3J97J+2k5mYz02k89OQaUqm6PEZJmSkcsz
+N4pnv8DpBPVYQXauSH74JAj9g0Pzr79bHJmbUVEUWoFxGEf8ESgdMjNX1dVw5WbNjT4sfghq/YtW
+BqfGEuq2WDwyqG3/VCex+ErzUHBKGuwdQmt2D2tvgL6RjoiLWzMQ3l2X5tghFCvqxfdr+7Yzg53n
+KvKRbfZLBFyedU0V3+lbI8qjM2QfcBOsv4xKn0jeVTqM/IKM/0JNqve3E9Vb47LQUoz3ejaLbF8N
+fRFz7fWDZdqk47i4Ya03JddU8E3UG9wsSKNAddS24tkhcBaJ9yFz28GMhnaZvS33dI/ClCII9jPT
+3Q+zLuvv/HMdr43Ctj/rFk4lCTY4h6krdwZlIOQcrc+FJiPP4YqiScI0dQqc1UoluDGzSV06CTOG
+BIHUD63yhEYpx2jbHdHpLhAaZODM0XRyurIZn6ZFtMGh0AHLbQohvPkj7uQ73RoPqVzszVAHcygn
+46dK/NB1510Nsnbe947dOvuRuMzbL/nXrlk+g5qfc36XZqljTPL1ikugVp+S2Rd7UbTmvTEZRRWS
+DtfcvZgHrtVy6vvqaLZaHBrDWh0sGvdycoes2Vioie6VavWWJtKp2eFexoqy+iuSUkURAkj3Q1/k
+3XgRayJJkLFjrrMQGEIFiCnGYmkGnfaqzDPO5BR9nHnFvbnQ96u93qms7NnYjVNl4WvsDgHaUdu8
+TmxVXowOt/GtyLrK2qrSc4vQaAdATjbkpLBLU3XbCG352WFos8dPIb3XMrdZTnIce3fvE8Zeuvok
+fgqdEakJT+63vhhT6xineHZ9gL9thCU6yvRa+JQFPzZeMy9hlnatHtZNlTW7rOrkrRjK2TomboeE
+NctFnbGte63C00QZ3zSqMmJflNlqPFUsOla6iWT/ncpU3y1Fm9z2Tu4vNxPVFm6VjmzH0E9FfEiq
+PPhGo2zM4u3aLtejrhVJd0gyvHcv29ZpSetpaksB0wq9YJhBNorVNaDEHvxQEIf32hZWhdV/R/xY
+yws/H9g829pL7KinLSSj4Ehhx+wQPto4p/VRM3t23H/mcPEA6DeuMX+kYpph4Y6svY0SrSI0aydv
+Nklm4KfGK+7j4X60gp6MSC73XGtEFVmd41LNTPMhjSbqatN1UnVZsRlc1V7IbpAVx6rClgjcVBuH
+i2bYEjvwKtg1DfbSkaJoyZk5t662y7OhCy7bpca8dazSoItwnJl31Inww8L+Sm3gFBQcTDE5U5Cw
+Q3vZ5G52E0gebDtTrl4IVSzUzGjGk0chc0QAglQKSjj+rR1Gh4HCslUkJWYVgxAf49Eshn2ger25
+nDHtye+tWGjiFAxTdtAKDjmqiEa8SbCooZ/OxybtGJQxYVNDoeCT7krnuxiMeQwLm5BiW2OlyC1U
+ZIG9RRTXUjg2DGzdZXwkg6YeKsN2DIJSRVyCYkJizQsV2NtPVuVjHKA3LLA0yEFyeiOdYdjM1O2V
+Xqvyk0TRnHO5RFB1oNUcemHiY85GXZZKZp5PEeZMxloLj91TIeFmAapwCncra/JfEQlm8v9dW7b6
+1krnKcMHR20bIftqA4KadDGFcTBvtP2eqHPqh25mt0O6qJJLNij1lCfEw/su1dWpRxjsRsxoSpG+
++O47+bHFr3HOOVQaVzHxnV1suXt9qO5M9hlNQtjJnZtkMD+j4vnRTemh07Wo8sxLXfmnPGuzTdd7
+eD3V5d7L5RMi3aOopmicy69u0z/4tfug7P7OcqwYEF5DE4KzRFpJno3mYRWijw01Ml2mxMxDcluW
+6taR2SUc350/fh+67ClV3vfeUKeOAu3R6Xw2YI3eocuyNTpxVA2icSmXCPG2SK+HqQt0ilL0OH5y
+AF81pIZDvelvZ2pKTjTI8ktRZcyKZNQiZ2J2FnjbbBYvkG60GAgsyd8MqePekMzKcHMZ3SQkZ47p
+S9vgcPZJN5R7LegusKOad5we6abgb6ppQL6lcQHI70GBf6vyRN3lXjr8kiMexyenzc0knHoNfC5i
+9//H3nlst41ma/te/jm8kMPgnyAxiaSoLE2wZNlCzhlXfx6oXKdtVR979byrq9qURRLAl/feb3jU
+Z2t8q9RWq51oWpKRWh9zzx557mg7DmlGcU4pU3FrSTgkOuPSxIXbdcr0qJKNNrxoKNXUzaRpuep4
+5thPzXSS97M1C8m2Rux4pOaLhBXlBXyzN4ZQeLqU7NtFq+FFqAuCFoiG9B3GQ5yh/Zn9o3MxmQ5f
+5TIKTHpJIc6q6zAPj2BVRMxp9DmaUcSyegP/bVH8lqQKQpRNIEnRfZdk6a4vqka4knIJZbd6Qmt6
+8998QhO/db8kBDSa+3f5hOvvTfGaf+3fyn/zsR95BNn6ApBYBWxkrJo+H14YP+QsVOkLMmprFoFj
+FZ4KOgH8jzwCyQfMqeHrEtgj+szLf6URrC84PhD0YyxDeoKwX/9P0ggfgPB/ZRFAz4ESN8hLKsgW
+AJb9nEVYiP0LQMaXg/9yDj17t7F3/tnf2b5/9G/4Z2dveGV7nhfazn67f9+yEdvv7na7fR/ty+0f
+UOWfxBb/eT/0wM8AdhXeKSqT0sV9cu/8je053tb9qZOu/3q2nzMnH/jK3z3yJ8xZWrJmsUlf3OP2
+aD/5rj/Y9s5+3vj2je3bNtd0t47rHhz34F8c2zu4f7iDTzC0fz7kJ1ZInjStinHF5eifX3b+nU/7
+Oq/Odu/c/uFKpD9+Qbz941Kf1YlaUqvBwMMe6eEDT7f26/o//jy/+Metez7au+PL0X85nmvb9Y/H
+lxfuyL7a7Oyb3c1mt9lsvM3myj55W2fvHLaMhOerK2fr2PaV7Zy23LW7pcG2rnM5OLZjb739xTkc
+XIfhsv191/1pdJifGKtd22Ryx+jw3cvT13Non23v+eSI9p+a7YN3/5sx8lm0Mh0MQIn00ME9uq57
+PDMljsyKjwFp+7V9ps++MitsGuy4/oY3MmH8G5u/2vHLdRwxnphO9snmV7xaB/Nutznx5/aWtnT3
+zuVIuzHfjv7a+67rnBzf33m8kZ/3e8dZx6B/ZIyc/bVBI3tLj/EZ+st36ZEDb6T1n47ntRPOLp/5
+fZP/cQB9QiubYVAKBi3BJXlG7s7eHN3dR1PYPAJ3xb/OHzoAjac/jFv113VgMXANggh98Z9ozuPt
+1lkbgRfu2XUOu92RQffCwN3xn8sU3m08r7Z56W9p0qO79V9s333yN77/4u7OZ7qDNe18E9r2Iyuc
+TyvST96eCfFk3zh7+2M07Ta78+7m+y60v9+sX/r17vwS23eL/TW0dwy33c3N+YYfv39npfRtJsHp
+lknLn5ftrXe7fadjt9tb++5mt5tsO7Q3zJrHq9Pp8bTfeve7/fbb7cXxNs7FcY+O59269uvV2oOM
+s1tmi+3t91csAvstze2y7nwsRDz5OwvS0WV2bbcOj7djxBycrXdiJHy88eGWv17n5617uDw9ue6t
+8+0P42ClmvxuRnzCXLc1jnrG2iEsIU80BAPBuXIYqM72wL06zp92gg/K9u+u+CnBjUcp1bv1iucd
+w9953+5imw5dBzoz7sxDMq/4kenC/9l7en790T37d+7d7uboPpV0+sZ+Onxd5w83fN7Ym7vrYV3h
+maY3DBrn1mOWeZXtnV4Te88427uubLsXVsIXy773Tuu8du2t67EV2Pt1NfjDDJPWRet3z/lpywsk
+0pdg1y9H9+Vut0792993nfphBfW7K3za8dj3JUHiCgcGzpkFZ90HDmvb8ZTrAsTQYiAxvpg5DLQD
+TcXwZtniR9qD320Zk0fX2/OSd/s7mn/Lb9k/eM1McJhTLvs1X8nXr2/xSz6/u6PzWCyYex8L4nrF
+ne+88BZuwXbohfXt/ODZ63Tacl3eyzdeb858PVOAr2Iq73beutoej08u+9Xuzqah+Ayb0ToCWTm5
+OT7P961f5lzxgiXiyB0xFTnV0K8P3n59q7ff0f+nj1WLp95uSh6errV9b8t4Xtf5dQ3n3jZ88sZ5
+5VuZdM7+tE7ttZloqPXTDIycFYfucvjr33fZ2uX/6jCY1JSeZMiVFn5x8FQ/iyXGKpAty5qxAscS
+9hQuQ+CQzRkOQqQNnpkHFOORKP3DRdcl9R8XXVWR4Nmt7OZPK31ilh1Is4kaPhY1l7RaMkxPZ/MP
+V/mE+P/r0TjSQrqHEMbBk7v4if2DZVkIYphHi8xRGjEAFFbrjBnjVlEryj9c7N88koSmJSUNHe0C
+uLG/XoxccGBA9YlswsnRCYo82JRAXf3f99a/eaRfrvKJVdCUpSzQhziiRgFPNFbmDZxFxE6nLvjP
+iGBr6xErIGG/speIAT5dqu+lSG8CSimI/GibEZMvu+4X408P9EFb+3UsQHJB7xxaG7VP8im/NtyC
+9ScCMSAc5VrPQ1eOsHmzK3kRHjMzLB6EVT/LicBECD4C2MOxkwcZW786EFG+77L5wcS4CRfaVEii
+3az02utMrQyeVYA5MZD8HihoWOhDh0gApud2iH3ttJmWaUxAMUtU6EiyJPmFmrxcOEYxo5kAPQ5r
+GlMA6+hm1soKFXEanpwWuOxi95IMOsIEnfa+lGNfeHnV5NtZmsTRa/QUZZA+QCN2Y2Vy+zCiUxrt
+ZZkSBfUUxt6E1u+30iysBmxhEM029ZlOwWo674EhYYEq2TIs79nuxLY4iyhgPCitkpfHSFjIzi/R
+Sl6LSB1jgK1F8+iT/BxJL1PbJDevhyQMYXmSkVOtAi0LoQGMZTfxQpUtVub8Hi9MLM9zNTILB38L
+EnEo28dwN4QmazDqrq2nIcrq57IxwP/Dgy0XO4gVkA0ISVSWJ1LtO06pMMpO0lU1JtmRIiEPmppR
+5CpZan1bxJ5MalmVWuEUkEpzG3BS22yxfwKyHgRLnh5rsPr43QrzoPlG3SQXJDclanmlqL/reiW9
+50mtUX41jNk6rlRn1Zt7GQaWYFXWqUMLTNlmZQy2p4JiCDUCIe9zVoWjSbo0V18LOaxuW0POng1c
+YUnVaoigGeSRerduqFDZgy4mx1lSM91TcRpp74e8jEJfLyhuOp05paOTTFr9XnTDAFKzs8h+S7Ja
+xEgkLcttkw6T7nTCegck2yOsYCdVoHKxKJTJ5Tp6SanjnCQy0aO7lKlauGIo0SxIpA2Ch8hzJ/mK
+NWbPfT/IYGQjqz0O4CepFlIHzmxAZZZLsY8CBcILoWdl6D9s82pIHwFTa7Gb012L05QAwR0sESF1
+rAIAtU1XWbd5W1aNP5sLFuUNlHOyUAz473CvzCNZKrCvc2FOs52mQNydbOy6dNtG6fRcd0Mn4Y9u
+5VezUMGqQYrKeFdJhYMurSllnVQNi9cddfQ+cwIpGy4z68hbJpFAQ8Y6Hjt83Lr8Bmxjk95NA2ME
+gtMk3E9o8qAVXg612yymcMEYsCg8QVH7Pa4FeeGbglmtGMCum5yaWTSvsOjkoYxry3RhNcnMRRG7
+EGza9eCoALDE4CMP58Sp8FJFe1fAc8OOVLU0vaZBE2wrdUl7QUfM7FEi64uLSFUBjJtUDGQ0W6Nt
+rnql01Z/47wUqbBJSuQ3nTKPNqlqSwSRb7QA6WWrug3M3HpMxFh+kzA2XdxWBOZEdbEvTs04Auhq
+6rHIHFGeVr2MoNC9OrX6xsecM7vG8plqmqgUab3FkUR+qcvATN25zqfoNBVLcdWA/WDeD714UywC
+Sy1Q1ITMv55r9x1CBBZbVtbjKjoZxX0rgtR301rF5rlOBIhHsVk0mVv2K7B/ZE3B1kBJsxMqs83o
+VlPU1247qXGHV3cmA+yaSHhjD9+Ez0AO62e8WvPFXd1MIy8M51EDI15C9oIwG33FLGma7Ept+pwy
+fhzcAfhW7TbP6YmlWowViVRR32rNUY/cUMHCwl4SQ5rJ3pdh6+tVEe4jOv5droKOItOsQ3ATl+kO
+9oj+bWr74AGBE6vbhTMKimBe4/DOGhRywKWI5p4xwhfH4Fn4Vuvh8EoONpvZ0UXlVkUpqLaLxorf
+aghgkL2VULjHAil+jVIQgp4GjeCYpQ3AxlYKchDKQ4Xah0ZB9N6YzAhbAVNtKZTrYQxpJOmfA9Yp
+gMLhCAq+Uca7Lu/n3J2WrrqJjELBqBr/TFtXMyBtNRjn0zCgs+GM7CAa0PPGpJqdRXiw1IAJ/Sho
+BrhoVWFhaCWZeuQMtRXct7MQzJ6UpOZ3NdPy2yrWpczOAKwkDHn4AJu4rsZtI1Br2TJ/2LTiXg1O
+sVXJKD4XLUUoJZhADasWhfOeWb5Lw1S7F0QQjX4HDRL0baUW+5XRirMPhNPHIqSNaPe6P4VJqdc7
+OIPznYkr99qapTpDNNQT3DmsKtFpKNUUPeqJqnYEPXiYU6V+aqNhdRzTpxK/8KqNMTxPUtTjYA2i
++xCadXBQcFOqqSDkVceOJk4qYBtB3WlKWCuuAvnOdBHsltTNYuF+7uSijneuYGqh4esUJNBalA2y
+fjiIBKcVOHKoWDNFO677JnBxUOhfAeCrT600otCUVKDhbE3W09exyanEKZEUPbYit+bEOIBvlqHU
+YntY6vabEC8ZCloNMBB3SIqehSatutEZKshTjgUqP7XFvuf5xjZk/tSoBORuLRjhGwuPJu/EVJy9
+vK8AV4tFBBcrSBDWCAdgeLY4Vavp99BmN5SLcChPdYabE8+ZGrhzzkrjiAD4JrdUC7zERwT9KOLL
+SZD6gRH3N0JksUejXpQDIY4X3dpIUh1PHMkrLfOgxzShj79yRg04FlgWBJ1HcJdWju6MdgaoUZWt
+9Y7L/NRf8VXRHR4xk+wYnVD2xwTY1LnBIxi3IKvRcByY5bLbhEieZO6Sa83kUbor6XNs7wWaZeDM
+R1ZYlEGRN7Cq5yEvdCZ8q8vbVpPb9iYsGvMsdThx2UkWZleTJZWxLaNOfjtPwDZ8CEDSfcBAknzc
+5KvJnoJHC1k5+COFwkM2cpG+GVVuKO5ULtH9HMb5PQyU9AwuTLnEylJtGLDDxopgdeJhFrE/pIvy
+vZLXLu8Qw7iYAid+O5MUYXJCOYhvi3ZIeweqpS5y/maoVEFsZu4sRcELOIdh8fVGSPZgdofOAQXZ
+ZV6uUla28wppBycB7avZOa6K4CQTKtVQvkSzcot45qQ0R3lI+TY1mqfGSNkzYYYyzAwmn+RA2tVO
+vZbFk7e0jDyb04fyHMxVfdJ7LThPc8moa/O170XZxJ1lHr+XlTnezaBxTacShlDEvAmosBMy6q8S
+s8le1F5Mv/UpUHVXwFL7WtSbWQeoAAPLGUULVPG49PHwhxzBP+IYWs1CNh/koAkL/DNNOq8p/+eR
+8WTFqPvUCoehSQcm8B+GMetFVqkMLBTAFYqf8y1KrAJbYfdhC7Q8pVa0vQLfAXpEE7NZf1zsv4jU
+nxCpaJKiUECA+39jUp3vn+XQ//dDPypIivFF1qCtU/RBsgLhlH8hUakgqavmiEgkhjkw2tP/W0ES
+5C+r/C/JAyj8yPivAd7fQFTjCyhUvg35MrqbMFz+TypIqON8zht86PMgigY0hzD7s40c69tAcThB
++KEbhNE1+iwn2FrX9/ljqU/WVd+UVhRhGMvT15KT51cCz/R1MBo0RpuPfUMrC+1JWTeTOUEEg+N5
+Wy+OORjzt1Acekrzkw4arobcdEkIuogZMSWGpWeV6nuH3+hljqw0O0xBkIhIA83wYdPaDO4DGEwj
+QAdhgAyhmc11Cvy+t6NFVsCcd4NUsieMIpABoGsnKYizZ4LUY6PrZroV0VMObQRBIHmOehGYdrPM
+w/2gG4LmSVCprqkYDyDpBjj9S4LLj5tAssYHdEZ0ygUlXu4bqc1mp6zG+IXwNq9dRYeMIYg6qE4Z
+njtgdito4EsOYnfoKNcr9qJ1YUzoIMNx16dWHkA7BN2NGBnCq4xCWmgPUjI2Lk1XvfZt215XUwX3
+zAAclm2mZAlTd8TK6KjAR4ep0Fo4b+v10B8kJcg0X0zz7m6ErhohU4CGs409sLobYuCjXiuJyWK3
+hJX6PtdXXjeAluQdnp40OpWmia2rg8rZo3FgWpuwDZK7LuiMEzg7pESr2Mxf82DKWJ1Fqa5dGAnj
+M/bpzWijahCk21jPkyfgn5kJEMWoAx8tJyNwIimI3uqBiN6h8J4Wl8IQob94Sm9QNVdbtdZ9rR0j
+5TWBXPLUBzKxOiBC0GjgbVYsiqVkGUBTpVMUBy/5lCBukU9jqBlImMtqDPpAQt3mNTWWxThUih5o
+V4FGKgINf33MJyePlybd1pxKkfcTy7nd5bElLBBQ2eedQh2rxEfBt2t9qZLKclPCu9Q2K0zwMe3Y
+DDyEGUU8jmMiQzirhgoqwIJUqiCirjmymbMfhxPBoqvUelE52J1l8zVoCWO01RixKwfv3Q7uCpYA
+z0pazYUbSlY12+1YCMppMIdmdIQCcTy7JdRnBlR1lXKSzAuwxNT5Ro/Th7zlCDWpeynJuuxaD/Js
+vGNylQ/asIa6lSBm5WkIu0xxFtIB7JZR79TGKF6Eli3NteRAQmM4gEcRDVo/b6RBaqSHIoZJ6VdR
+SuquEgeod6DTxkuNZspLbgxi7JLZSywnDcwpe2oWy0w3KZH9jHgtDmi2loiYhhgcNl8I9WvQcElY
+JZtSxHALIY0sOhrlUFRPQSL1xxD1WwJoNZ8JZE2FEB60ae/kQp8f4Lj3IENGOOK0bAtSqBXm5DY1
+yuau5oh0iMtJfg5lZQ2ChqEVHaJZI9pKVto+hMiJoWzY1tKzFJeC7IPXm69YuCIU2olJRs+Kg+yN
+8ZfNbpwNyksC4O+pkbmeB8OkuBdKDS6jJmANBeJ8BitYxQuoExJG96WcpokHIDw7KohOaF4s6sJV
+M49B64XglB6GXIBwQ6RXLV4olxzjEbUttwlRWrrrInKYF2tEGIHlU2t6T2giaE9pvfokq+AdIZpi
+nPMYTqGqgjsKO47HCGwzeggY3+Oq4tyv15qeuPkcZBLjPe0Tn9z/whonDPXjCFoRiKVlYgjGOFWu
+xhLWGGibEekNYZy1FiqelKaQfGThjMxOqTtRWyqEJLpg2aIojbs5zsiaqWKlvAKuGwZXy8thOOTI
+tWYOWR7xoU0STkNArUTRzce+Old5RcQDokYFKFqE6QVUhDg4zLZmOZK0GJ+HOYUYE2jPjaSEEkke
+KKRwfqKu3VRFMbppHkiMJLMuRz9t0DawlazCui1oFj1zemVESAC9mjHdChGoM1tRu2ncCgiXntV+
+laycmAiXOKyT3qtVuT2j1tG8RmVKFI3PPXIcy2AKt5NRMqoKTUn3hmhdJYqaGcdUHqbtHHWJcDBm
+eSydhszZbfBxsMeB03ovspR1WlHi+A4SQ1rAT18DguKv4OAjUAinWs88PNYJIJoc9fQN+0ERwb0a
+SbKinN7fpBE0e3/4CEOKj5CEZYrwZPoIVaKPsEUUVwoBWzThjNAT2aScoCUHbyUCniBuw7flIwzK
+PkKiZY2Opo9AacZzC9ztGj6NgG9RKPkIq2B7EmL1H+GW+RF6Ld2Cisp/z3rNZ7QQoo6c2v/vk95N
+vJKPXotv31fy0alsuu+/wIb++vzfhz7lC9AfHWgQSXi21FWy6wdsSDHxuuGshb7+X7/hOPY3/YhP
+IVlI3hUhUE0krOeO/j716V8sdPDQdsXZgLwVR9P/5NT3a3leh2uoAFuCeLfqp3K8/CRMCASubbpW
+f+nJF1elcMGkIxcNv4TagZ4UGMkZ4NmQ/DWQfiFB/Qzd+VwW+7gq7QwmCrF/67MBltBrJEYn/WXq
+91ZkXuWDJ5fwD1nvluXpp865/qvU8fOliHc+H2tJw2BAZK7lD1pN/VSWlQec1jmQs2WX5Sw4tZjG
+ogdpKhG8wQqqQz3m2gbRxrz2xD7qDKdtNYQhonYqUahJw8g6W02l9g7khfjSpbJwPyZQfZwlDAn4
+kT4KHit4zUxfEFgqZzclG5126tLM0QWkIdypITW6wUOWHK0xK1nnaUIl92wOc/DYca4KnbSJrR0b
+fa/YEvmx55K1uN+Zhag/KaUsR05ZNHW0Ndls3ku0n5j+TTOaD1NUK7UDOMgU2VNiErJK2BRuoaIk
+awdqId2ppYhQgrXUk2DDHgLFrYqRELkDkjCLg4dKgaaI1JP8bzJdfV4JtWBva030JuSKXFPN8b4B
+XZqfBLkgAyqbwzyQyAgVfE9YBrE0yqW58lTUYigthQAcD/MwkHAVlURNnF5QZ20/pop2EJPJCG3w
+5JC/YRfJp1ijnmeXiXJC8hYUN4nSG7UKn9pQYB832qTJnFwrlJajNvRRzjwCkNoZPzMOC00TIBgQ
+dCR/hRHhC1LMCyG8QNVp8nDbCxs3N+fV71GcmnYjqfS7I/UDjM5SkvruZsHybYPacymc1Sgzvk3x
+mGLPIM5d7/cIoqt+k5hZeODYMQY7pQYCDx3NLJ+Aaiffa2QpJ0Qukkr3ZPxgcDMo0MQAzlkY0Spi
+NRwtq21KN+sFC4MkLW5ca4qj0ZfxkE/PnQlp1UEcXYT8S0WTSCYqiHikmvBjg85GVbtGrRXJXkBG
+AALOQoq5RuYmiotLPYwJ52tpiN6QbseGJunEisyQqEP7jdaDOXk2K92WTV+TjFuP7rBl+EY51jGo
+tOYuf+3CbrUM6BLjBAUruSuyarQ2MVvw3qrMhTanYjJynidoQOaD+MGU50LfUy8hrsA5EfH43giU
+nVqbyVrVEFuSgmtAEgGkXQtPhCkcaYlYaDWiFzjCwlWny0LiDupUZZsuXDqBXStqr+s1AMJncmhc
+OdOxuFnWEGlQ5u4GV9fwoZzm6M3S8v6qQ24itgUGWuwuHaYSTghm/Guv9RNBg04xEhUJHtCVshGw
+7tzIWukhQ5DzdstaFEeal3EitYYwkmN1naxtphYzJltqm/ECrby7yYhyIjvNugpFqil9qActehS0
+TnhDFlHoXLMep7chngBRo7RznaWG2cEuUHvZhkY/l7ZRr/3QZBjqUmiL1nsZwP6GXTj3dhPNluaF
+TTN1thah0r/LLfRNweCrpMhATU9PJbXj6x51os6HIiBfI9EtJVR++nYFk4dx5sp6333vm3a4XjhA
+yz5a/tZ3wyqpRZC5S2/RXjEneyjT9L5JWeLRPRCFZ6icaeUrGKzoHpU+mieKpZzseBa197EMd5Sp
+kaAZMGXMV3RdoEx4sAsttHE0ZX6PtThAhiLujlr34VO8LHhQE5kp1wQj42PBee9xyUSBauwU1MRB
+BoYDDjL2puKilSlFm66ajK/Uf6NgpcmNhzpQcfqOS6MKvFZJ4maHQAMH5JlM8RpPmKpwQOiGFEJs
+GD9kef+bvPopebVaPXC0+L8PNLffmzCufjnE/PjM34cY/cuaYEKKGouMD1jJz4cYWV3xzRbCxqhQ
+/YR9FqwvlBo43nCO4ZzBPk9W6+9DjCR9AZUty4APVo1rE2/UT5zp33Go/5FVVbgtmNqYdvJdqvzp
+EIPNtGXW08COQXhhW036jHDB809t8m/OEX+6xicEitpZS6Ih3c/pHCHzcG4jD4WbPzmDStqanP0V
+sKHjw8yJEcUV4DvaJ2AIquUgXdCwZIfNCsmlcl2i2KUXwreiNPOXvqEYYscYWD2z3etQOMURG+Bs
+krvZRXdSKpwgynthC9UIVEMyyxGq1nq/PMlmMye21mTpu2XV0nzDCaEmrNAlEZ7koJjIBdeZUTwn
+42KGuxCxscW1wrqsr8YUJSAYcRqSDTacvFraCBBpcTEyaxGcA2pnj9j1oqKEZgmHKUBArbUdI5FN
+nHvhZES6pu6dgIp7akuaAWOriTSFGrKSd1AAdYNwTlVWMASWcepbFTcWWqh4l0LrTjvtLjBwpraV
+BhSIjTpgKR9IBGkBQoC19E0MEwNJIQOJjQbexiURKcyvZYyqdnJD6hsHOS7hEZdr9LMQ/cIbDrWY
+YtkTC3ccZYYcPRvyIWsEJbTDZPclknCuZY3LTC4tGZ9Ka6QeV2OjdyuSttnJ2tRlZPsW64iJn147
+owSgi0SKme/IfEE3ykGVPMAVQilv0UwgFMXQQv6aoxAST4v8pGLNj1QGkSSqrBiAyFS+oo7W3Ukz
+GVa4pOJ027bCkm2Q4Ys4VRT6mnib8Xry8GSUCzsfmA2k94TopHHxzBmHlYMPCxExKhEW1ZLPWmMn
+8zyeKFGH45VitrmGdGYMtXwU+/SBFF9XOlFlhA/dDF0cdFXTc0DLVeVxQgYqtRGySm9lJBwfAgVd
+NFeZE3l0ofSUV7DDG0ZMpyx7pQuExyq3Msbr1KpkYFXRQlZyCAoqW12W4HmVLRd1XADRNKPasD1o
+uRZxFlcDlCelWcqcFs/625bM0GvYI/HnSAAGSG70g/pOzS4ISbxKsLawICoEGzxpaCLI1aI63vao
+zXRd3kVXGhgEOxBLEjtS05mXUTNbqExSrJ9mQ8adDTppqB4CBJFIt7FFJgCGhP4Np8zohwfGf/eW
+n/eWVff7p3XUfe1ef/z69Jp/////76ZsXuP89ecAGUvD9TM/9hYNL1giMxBwBql96hxEZz8CZF39
+Qq1EksgLsqh/bB8/4mPtC1UP/KCR3saGZ42vf9pZvqCcuX4jDlVsWauDxn+ws1AL+HU9VsDfEboj
+zCPD+sHh/dO6H04UN3XK306qx1rm1Jhbxm44xfltLcr1Y4sZ+mtitMZ7lrUaR+FJ3QVCIb5kXYyw
+bowchbrpq4ppRTazOcqdRL52UoThDcxIcJl6dQCYZQrEMjkyFd8JXLpHc6mC75y6ECYbiQZv1TaH
+OEl9oHzNwgh81YjeWA1IDukgxOXSMMBYvKdm04RZ2fgJGg/XuaUiRxknSS56Q6p1d51J2ZX89KR0
+cN3AwrnSjDKPW8bB4paFiBpT2y/TW172+e0spilVYhWCizMrAtgJFLsW9C8kDbQL4LVVl8KY7oYx
+XPWS5kDPbIwGGtGWi0LnBqes+wYGgmUSOtyA7pgxKle1lgjI/Fa6suOkQWIUU7z4TSXcviHTEUmu
+kUYCGUchFW7BB7Zvct/oT/MUV6099yP6TGlYsweZutjvpTAWn9AaGh/lrFqDjGKWFGIU4u6LyOgB
+pCiJy/2SREtt10KCSB/M7uJ+ULhFND565dtQWPnXIiB9aOuZgphqrFjCUTbI4to9wsgs9EAT2Vq0
+svaKdqmRNUPMZXaWQJTXmswUe+vZ3QJeOQeiixSZ+A1tvqRziiYYwBWF4RLu00xQJ/km4/ggXVA3
+CuTqRleV4XoURsQLkDNa9T4VJTiDWZx4SE40jSt2nXo/arO2C6e0JgNgFMU+FRTyhGohGMoWGx/h
+Cb9r7k+KofqrsnkK84mkYFBMk4xURwV8i02JYKZHFeFUVAk+OdE4GndD3SI+KsZzdBFLOT6Ukrbe
+Q9rw6TYt09AthbWMHpTRY8hj4VMbSARMaqtEj2pbTndwKKndJW1h3YRaIBtuELRx4jSkj0G7lVMx
+2aSVU9j6WC6yjXc66tpWbbWPQRdoE/rbAViFqJykJ3UU2oKktKaFPkVz1bOUYagcBFaCzUL+hpxI
+F1FN66LWCJ0hVhRQIUWYrwC9Vt9Py5Kg/tS30r7vk0G2uxVY0YY9qolFGFF0k4N+BLKpy9WBmlqM
+KFuVoUiJHUG+JeYsr82ykx66OEC7TVgoJe5qo5N0vFcZr3sAbHrtL9gLHaIoRWAQv4PUha+a3pUm
+VTZnjM2FLWjK4A0nqG3fG3rQXUdNjBzVjCppY88kMdDHJgOvUi9Rm5n8EFI29mqZ+JKBD/oqU6D/
+FlXl+A1MavQ6osR5BTNaomygjyAMlUyoqFH26V3BKYpCJXKETz0ywC1GXY1+r0xFhstuTkbZX9DC
+w9lEEDvVjVu9zdC1bQOfHBVGlKmVSg/w26V0R90zvC/yZJQIyMNsOM0RwpVwyDlYdAgFMPwtqUcn
+UFtOZUteHGCSAYoJtbGO8RYUI12Xi08K4mRIU1orXAlcKrWGKhvNuzCqtCsq4QGVmzkhd78wjC3f
+Unr1bmHE3gG+oPCLuki2i3NNaNyOALfEnHhAVqIiXPzWqWkIk3mRc5jAgaH0XkVSZcv5Ru7dNkYb
+nb/IKbEC+WuuLGFN7tTYGhnbAcfEnZJMzP0ESjCXkTpE4sIhjdwW9ZOnOpjLoyQq+ZY1uj0nChKq
+FE0M5SSrlfiMSaT1Ljby9E6q3npvUbTp7SEJ6tnpxR7aemC2UeFkQgGgR5Vy2Qu0DHEDRNXwj56k
+vH4dR0q3dhgplEBaMg9vmAL0t2VnSevPenuXZEr3lhezoOwVDGs2kqibsTOZLXmHeOAA7gd53Hco
+mQaI/0RRLT0MJTLjtlku4QuVx/GkL2rwanWzcOlZRS6WYI3pphoaZkjQaRiNGPlay2QbqP1RzVvW
+K2kyA6C08Xwc62wSfXTQpq8GDuUp1bC5ewOqU+YYvxXKqosiG5tMbAbRTYgCXvrc4Dujyiym7ZC2
+ytdxpCZnW/NcviaCrk6egHrMWU5k8R0Y93jC+Ux+NZqp1oAetvrrEGbJXaThnIXVQdburbjjmAxc
+29ZApA32jJvnsM2wiwAfM8b5+1SLwteinRIZjc55vo3LD+GacsmicxLXgJSQrim+S1nLpBrJeaUM
+fDXLAGZm/YEsM22pFHP9Hupq8DIrVXj5SDgBJPwf9s5jSVJm67JPRBvKwZlGQOiM1HKCpSpHa/30
+vcj7W6tBm/W87+CzqrpVkQTCOX7O3mt371EnJAo+Tt+3W3fNecprQ1/pCHKdyXoFDAyYTenaH1kj
+PYAnoiyDvjERlRz1aAw09OCdAZ/XZ6AnKN6RTvrIBOM7+slTQesxFstmJphg2qFLgnCQ1LFw916Y
+TS8CKRAKy2F+QU4tnu1GWCMdLPqHfsIIlb5xP7UNbd3JZWdlMXH1WbWJNBgRDrm8YYz8BKS2EkBs
+PLUEy1AApjW5jdGa1tdILO6HR13sbBM71f4VNLqzVXto34a1BKxUF9nTaPa17rdS75lzWSLDhqCB
+fGx5pTab3JHTQ5op8ZtEtnPWWF2OTuICP1eVNZGPIIcu3YESlt02BeuV+HoInyqBgmjvFsfq7luP
+Wbk/iLg4J0TCdMcGSsNHCfn6ZkL8IXYGuvZXxU6qP7mq8R4iD0jjhnNusLexJhGiDavrQBqTy0Tf
+sAukkHZl/9BbGOKAeWpxtpdmebEZT3bryweiaGjOGhJsLtc+R4sDanWIljcU3/TBaQSSX+go8Kkb
+xJTFNu2GnofCTE30ahLNYkQKRLWpEnfiYuVzEtRD2F97MABvvWdZTyK11KMAJQpmcqpbfaOgkCOf
+TGf9X8iictTgliMr4I3mkDTv7JoBItXWTubuTnUJ7ck5SsonFoTR2S6u0G/JarWmLYGtjGNFPNhz
+ABp53alltn4Uw8j39xYYxVstH113wzJgfyv4OM86tINXO/ayD6ha87lv9B659pg887b0XiUbwh+d
+9t5dw2DwKxGLdaSNOkE8hSwJ1hDNE/ukfFGa37cV/+fsZslukEvCWXfckDFAO1f00u2w5rSz3DCn
+MAVIe88ZDNBfPdjfbnDrOwOu0nWGd3mmZi2qc+g2PvJ28THMrbhxnaT5zOLUfrVczaY3bmfdF3hM
+l/1l5iDyaPPSyVk5QaVtmr6Vn6EauzzoI09dFlFPvD85oTchcr14o9N3vnSVjGhrMe/nkUCwf8RZ
+oXFmpzJ+10QUv8vYsceAQqthLryg9x0mlQIuGxrqK6dTIWoOEFf1Psy18SaU69bSSdjWb+rIpMho
+o1L2AczgudgOBH2U225oes9P0mL47rP4o4XFFh/sZDHuoypFKR2OZRcFhp7aKUR6GOQwRmdEI6oa
+SBipnM4rTkyZWJiFZjTuoasHBi1qWBrwFZqbxgFyYGIyMH1Yd2EVMcinPw7ndch5XBEi11B/ND03
+3128vNxWRce/p+zHbmCXDYSLXjuD28Jy00himS7uzM5gZ+UjJR1efIh2bcROmz17TRp6YYDnCCRg
+KOWnZT+P2wKCitri5eHvA9xMPV+aSB62srMXCOtqKIdDuxRUmnRZQGzJzuKdnnQjst6mW6hmbASG
+1GSNJq/8DWrGYV7J1kWyfrALP4+XQFTz626KFnkYpQLwQrsY8hvN6DBo+JDlYI2Lx+ta6ozCLbDp
+S6C5Pf+VY88UXZ/NFSCsmRD0JfIosmxd2P0H90/a1YzDeK9c5TwpyGgkikbpom1skYzEu9jeF3R6
+nUHLjNpog0YHXahoCv3ZgCbkbJBHWYsP9G76gIWU/BZDBlI8czOn2IFoHE+eqdnx0YWacmkacFKp
+EM2bi24cFiJcl1fmi2EYkECjsDElJeXB5DBzgFbtmcsxXjrYQCiQ4vsmy2h12fjDjM0Sijja0d5Z
+M1mMNrrpmp6+DSKfNto2a0QTFS+TAyxEIvtNMk2rD5hVqMWblP6SzwBXTP9Ju/z/vYv/tXdhAYj8
+v/Uunsrvz6JjAP6/dS/+86/+q3thi//G1JyRs2uAC+VXdGv/q3sBeJSZv+lI2pkMn+lg/M/xvgAu
+6tE2R3djGsgHJVP5/9EZt/4b0l19/Z+LyAl75f9L/8K0V6nA/9pQpkGiwyDxBCJSPk78nw5ANVlE
+JFT4TUoxg860ZETcxjSOO/D43c5kg3pkK2Lyth9kCoJt0tSzQ4fllgWlewjbxg5cWr77Kk3YNxWq
+2JPw/ivZfREHYcpT7gJ+3Dha7QAgFHQlUpqqQU7i0U6Px+FNj9Bolw1ySSOx6EiLQfuOPWP8JDVj
+V1bibkZ0dsQSWJ5rVHLPU67ejNCdPkRq1084csKHtXRn89ob77Yye3TNVXOXSZhJKvzpPa24mHXe
+AMyJ5C6c8vJnCM2Boo2ohN2kivrWawFRMoG1zgnhEytLj3yhgdk9OzTXX1GraiO83rjNyA05ICRM
+76yJvqeTG82W1a/cheyGNlESOldAkwtr+kxiTdY191Hx4Rrd6HfW8IGRQdYbk92HX6XrgtWTfQSe
+sd8IPX5tdKTrNBnU8yzpFUeODiSfFJUTM7Kjk823ZUwiGGjFeT/qAgxXNKe7acpiFIFkHvmjm3j0
+kJKVN5m6Fh88DMck7Msgm4Zha2e9424rJvJ+izRuW/ahG7hhrOeBZSFqDFyyALJvlLQs2gpW+YEt
+aeMdtWlObhckp/OaBhBqEKhaR3vp0nE841nLb3l1dJSGqXdQBiIBUXN6/HmYKW5hFe7Kgvcd+rSK
+hnOf1g1/mvefoHRxa7g6C2xhOwFRvclBujLQ0ilo9LG/pMm30XxFBV0KCcYPCNtBKPVuj+3rYizu
+Jg9f7CXep2Gxr0PsXuq3tKN/yOZPA6owNzV+dZU/98lqP7XiI2XEMfaKo8KR5VBc5qm+Q4d5nUv1
+0KX5WYbhuc6jw0yexdXgGffNsgXirW2T+oSPod7VRt76wkYzMD/2cWxChl43VUgkIg+DFoUxFPbi
+KYnQdWYI4IIhkTem5hbobBkNyOKAiJl9FqP+Rg/YoG5IQ9pP5vDuWvF+rOXOHL760L5Hb4zI9MGO
+XsP5w8Axs5Eh/bFR72BDdtbOiTt1XQw34D7c60WKi6TcjRnhA7HVwHQf7lvHwcnigYLrYRtaJMn0
+UKfn+JX0hYNIq6CTWCMc/D6N026q9TNEaWyyjuQZE7jZP1zBm8it/MgFgVgN+7ovjT2aRYopL3mu
+KyvZWaF6goV36bO5YctTV/+y1N7oUruzeaNnwnvuYvnMhIcjD0s2mFqFIVC/savfOBKrK0j4uROt
+AhqX13XBDGgcdT1IMeSt6maksCWct+xfVej6R1GitHQSSg6subzp2lfDiwMacngvtUOuSYwnEDEz
+hzbUYv6bkbruI5v0N3Hf6eqHp/YV6H2h19taebe5fbOk1q9Npap09TwxTd96RUs6SKHdtil5C3Ff
+fBqZlm57VRAJMCUPEBKNLVrL27Wxx9YeehjpEFQ98i404u8pQfLbOuMd/Nb7SYj3fqpfeUXT9My0
+C+2nx7jmLqtwvZhFe6932TtxFtyf6Q3y4/fQLI5ojINeYYJWJeg+fKBfamy/x6Z76QlC27YdOfJ5
+pn3xPvkEpX82evNgju5LHdXPMqZcYODyERZGwfGC5RTIDOZW3vdy2uOh3o1xf8tYf4vbtr4rJzKx
+6ijZjcTutOW3LLk9U57vpdXPDq0p6pyi/JiKYccW6pJwVKn2Zk1y2zcoEpVcPsOQJcdJ9l5PAW1H
+LTdoT2yNEW/r6hp5xmHpYSk6/ccw5vNnRyaKmbN7TZ+r8KyzDOp6/292un8pDOGcPDESyNSwAfzP
+jr65r7IcqRm3wdJgWsx+WtYF5v0fYR1/TZaHlEa7433EPRudNTbdgnAzBn6gNL10O2pKA8RZ51tR
+Wfd12H7Xsd7uPKd4nfPxjoDuHWknz9KZtjRLvpYyC0p6LuSb1ID1NYDw+Lqtdhy2WYd4VQz/elPe
+Jov+MhvqCmXgjjCz47QwvcpSwvGqxNr0Awlo+hilx6St2betBTP5gv5I/2eD2UPHsoSTPl4rxmhI
+npUq7kDxH/IcRl1mdD94Dp4mvf1xSc845wke5NEDOznUFblw4bFz9hr+zdXg2wi4cSBIyXSKnXEX
+toSKxMtRFDdJY23Rud+opPohyXbkj5PLVNuc5BycJeEcGy8uoARrkB71sbvGc/kS59Wxs0N2JlwJ
+DH8a914sb82cO0EvH9rew3NXm6/IU7tXHajpv6maZzJi1LjJ6LWNeoTFvGz0vV6R9VOz1GMgnq4s
+Mt9GnN2moaHdI08J2F0wgW/ts0vwAqrhgXMsbnmVIyPkWa3sdIuQ9r1efkSTBxDPN0P/iBbtXELO
+wzfxKNlaQID9TiKdRkZv9BT11dZQ30lVN9yIYBoF6jXN8puQDp9VNyc8vvbtSLbWYWw/oualngUJ
+z/TXcjRqTUeE4ci4oMFnJUbSyrz6rrXVsTGyg7moXRSFjHXe8Z4edSfaCQufCvvzbLgbMDUklEuj
+qW49CIsDUmp6h5tMe2uJnYiiWyGOmYRZULPNB/YJcpRejCKjDKJmxvXzTCoH3VfRP6nfxaCiOyfb
+093YWkN01YtvduzvwnU2VW3hyFSX3sn8MbJfS69mKYbpPdGFSccPZ8m2dM9MZIEDEYDlFePbjj74
+wYACj1WC8bV9bN0omC3rjJyOnYjybaIqAfeSZN1TCORvaWYde/by5GjcVF39qMvho028M3JxrA3h
+pkktPyoR0Rvh1rbURYivpLTudHRD9bhmnrn7smSjy61iWf96ArXpbJ4qq4RA8DSQLcVOLMhd9ZET
+FJHor2wTcdwud2aX3aKSjlBbacxPaiSmJNyAHge5wNHT4pIGKVKNRPTdxoTupO2Tng2nVJrHacBm
+REagF5XlTutXeuMyH1qJGaO3+4AgovKG2hKNZaR6YiCi9aI/8UZiEoDPALDE2SvccD9VQDbzdr61
+K2ywoQeYsRUnYmLkbrLcbyfObph0U8Ga7BdV7xwZF20HN72FbbLLdfPF1o0ASPFN2FasiHJTu211
+4xrOjsQ3aBVCbgYRjlfpAd+NzoBV/zUaxc5W9Di2wzmvr3XL/e8uBJ41TfxUGyjIR4NJtba0nj+Q
+2wmVvUX+bte2D35jGxX89UqRqFczHWLSY8R7lJb7QhhfbZkGgxkf6QQFCQjZwVUgqLXPOA6DoucV
+Dy35LIj9QHt5jeoh3+uNS48XuVVjPZX0P/y2moN6tm7KcjwhqAjaZkFV5h0p7QJ0sr7nNIErb+JM
+8y2qkmyKAl0jomYkg84ywveQstYoAUCQ9GYU7MbRTuw7+zc03kyLKmmz7tM1rd+aa/giieek72U2
+ASvjJlF2ENsPVX+lmkVTlq1EY5irB8MZDnTHeehytbGw9qeiFVS2jDHYr+SYYzWiUvP0pVvjj5vy
+wvDNDCTmDgtCd8wJSWc54CAql4MzPuXdWzXvK/1ezi/DHB6IICYosd7B3gAALYOun7eWhuR0wLxN
+diYA4Tuj90ocqr/SlocSPjNtvy3wk33ksB8a36PJwVctX1oWZiX/mUblT1l9NBhc+Eq6fhTTDOMP
+Y0p6e1w5CsMTbdZAcIN4PebLhV5QNp1aeO20omBkOyzC9SMYU+axBclhGy0WlOY3RvaUe29JfUTp
+cBWZc5KIXjXlBR6qPVaCLAKzgAYyTsMJcwJiWtMameOOfGijBSHiIdM2drKo7CPSrXq9oHvHM+N9
+z2/wVQBFOQ+Z8GG65yeCHVu/zT5pGb23PPBuGuaBPTSPBev+2DD00EzfNKK7vKf+JUh4fozKcOO4
+t8KLblo6GJNZ7Jxu3vMUHCMmaq1oxqOjBAedqeIXdrN7YC4d0Hbc5HVynKuQZYTsgjl8aLuXPGeg
+7VmM30jcNGC5GyDJCat5Cq040AmHzBHmkGTuk5Or7bH2cBPiMAd5015Sz9jMVrdvwQJw+0teq516
+ZmG5B2y992ACoL5FNGvbkFHMwMRw502E+rRG1frZbE4U32TyhALGSjzj2KdFDEP6HKb5fiAtlSwb
+m8RYrE0nA4noArQ1tfKJSBqXhNEi3y1d41vK82NkuNBjpHfomtemppopzFMyZMEQkWhLJ4fxK7Lf
+ChXjSDGhHmzNLa+CjEAmz6yAE8uW+brETGptjWHbzDPs+WMBQZY0GmRYPGQC2TiKAEK+ABSR/GEi
+mvQhaG+9NAGqwnOXnFf+8KwHyTL6WY3YOveutUovbvQ7AIYQ9levvY9TnO31pNjRhTt6lXjorOas
+e/WGbOMg8ebHmracvjwQ7rUJ089afyIT7BBytWL2w0tdXEdMmI+lZ+bbXpA9OItdE+VsK1nhFrJl
+m3I6YmtEzKWW/lebOpaXsg8GZFvj7NanUsOo6Azpbci4S8zhOwLaY0f1r08UnHHud4bl/g0izu5k
+nV2XahVzQoBdvTzJqMEk17eQhViocTqR2csmlqCJnmwrdLcEJNARC23GJJmrzo5KSFUojan+yrBP
+2YO9NlyZSDj+uM7z1nItf5nDtufMEtij4u43HOVFpfRxVZwe8lpmhyS0uQMjRqoXQqRcPF4xLrh8
+0rXiEBl9r24hDFXtvfTaiWmqVrnaqRr1E7gc33KnXQgepMcD5lBEU4nfdQX+JSUDsokoJlPt20Hi
+PUUNX7vLtgJp22TON4sBm8XJdhmv7nA+WNxIQdXMQWLp3j7Pem7niDHmJkm8gZahNCVcJV1Yp7DJ
++evD6LwSgNt8ObQJfLPWyfgLu+xtWYb8prFCZpRqbqKR2GHScmFEAHtmClrdElNeqqBmBqr59VDE
+KtCLdaCReeYLDZDhRGLafJt2HivkVJVPOYvjsSNr4ZYgbpobiCSAT6ej9m9COH7TF4x5ocHK3yW3
+GKvP5FVtHcEKpGddSJ6e5TygQ1ev6Ltpm8M85nYcuMqLU23SlhfBrEgBbeMcRrZWfuGZxENaug9V
+VUQHqOPWSXSFTd6xLAKGPX2Q6Bw/yjzm8XE1nBblroIDdrBx1GVf8KE0ousYN7KvL8/uuHaW3Nz9
+AIBDQ5kKc3yaMHd9xCZzJiQ4/L7VcxonMh7qx3V3tW/dyrvo/chv9VE7y8lhRyDMiSKCjL/4viVn
+4EIcK00fCdP6vkw8+tltWXdHfJDymvICvKZtKK9dF5uXJeX10EovPo9kUdx4zKlOTC1BYTtPlmOV
+MF5659A6hv0sTbZkaer9pEXBIfE06wd7TPSDRCW5XZbxm1ZX86CrbtzB9VoPvSCOZClkoJcZmSUI
+9fYSj+/juOgYOtJ4Paau6Y5t6/AXm5rPo08UjEWChKWd+dTSGxCnjNoLwe5AQAwE9PpgUbKvP7Kt
+arkfh1beRFkb79x+aQ9IGgjhEGus+NhRR68/8y/5RpL3fYu7pb1JubpUB3F0L+siuq/soT0gr4Kd
+nhEB17g/ulnxuaNOyk6KNsZmAHoDGp75gfLWXxJUd4KUwq8IQL9tPY9DyYZxV/7FA1kM42lATkgk
+a0QuIdEg//mmpozPIeYR2ho2rs/a+2lFlJxVFRGEk4VYTuNcR73a88HruS2HjBPSJDxaeVNh12xk
+gLuHD26qu3GMPNqBGFxi6nvEVeFtWnPYpdOykR6tBTBLohnUrMsrqW+MdyoNYWfOF7O4i+o5B8Se
+RduRKeOtHmuIWS0brzWCJ2l6P7rHA6FKN9uXJoHjrfK4X9hbvieF/vB3M/0dwKLPnxqSgDKJ6RE2
+U/agSD7bK097GUMO/O/gSg10U5pjVv87QXbEp9ozf9ZSYUkPkhYaPHbkNA9TtLOBDbzwFoB+fCBq
+D8XCtL7aLYdi0J28C+kH5C+u2QvZEqsd18OpONmljsEIFofc2wOXJ0u8DwsmWvB3mHTJf+xBvZaT
+4jDXuCUQ64XfJqN3GSv1+ndwXZhgjoZ38MAjxz7I5vhbBpZv9oxrPx34IW4mT6y/xU4hmvKhknFm
+1jSe9fyB0jvhL7or6mJNpP5JIcttbFJI2D5EXMIBfa9SOE51i4NJORC8L4xlasJrjehbY74NoA4p
+XWu76InXmx+7x7hLeOC5n7QfywtfWjJDfFdvxt1q6AZqw+fZpvaCeYIvJvlhemHfyb74CaWCOUYN
+6CM+zuBiISH7+/HQxE5px/309y0RSvEJpBMcTG/4tDs+FOCet2kzh0d8GsoOX2sNYUryXWVFRpXO
+EPVIVqsM4PgVvCX0wo+85bSaXNeEZz6OJefvqJqp9y59kV3J3qv3BZl2/t8JKdtKP7S4XIK/b1gu
+RF3Jid+O7lCc7HbIHkYof37RTdqZwCh5I0Un99rUoENj2nls6zG6/7s7x3qZvlD6N1hXLO3cKky3
+auDnj4jJbxSp7f+51HZE7GvVd32AzWrWmN2x9vw9UaphxfnPiCKf+YSojdFggKNi4689smWiE5G0
+jCYbr5ZPhgTlRoQmcT/rpRjrVbemoLn4cNeaN4Zk7n0ffziNSTddFOEOK7/11HtKHMJUVU8dPuut
+FxvGiYhAzV9DIy+T2etvnp2wtAGGos3e1RSiCmgeokkt2fMKcu6bJde23VjfElDmiWFnZ+WurdXD
+kNbs6rWZIFOUdx2V326OWtpUkfhHLsp2IUvlOMPYcXLrXLnTw9i1vxjtjUCTZSBb1/ONyBK7vsrK
+TTX0x3DhH8/6TWOPzYEHAaBEpb1EkJ0QKc2nbg27dAzeaLXbEC2UZXd93+HQ5hdeM/4izXgnx7PY
+w7f7LG3t0lP1ogs92H314fTqTnLv4yNI2UP/ZOG9R6MtGbUd8vfX3rJ/mTCg7m4/WcHuLDQb75kQ
+33gmz6nSjoW1bExzvJ1scHTdVKwJPRYpFuD/Sqd7x9pFn7YWJctxfVuXHqVicd+r7r6u4m+8aGag
+VTr5YGTC7VG0H4nA27qzoDdrvE59+djYBeFV9nHx9B0a+ftCAi4brWciTI+il6+2U14a2/Lup4FO
+laqKZthqE/0lFfa4Cazxpx6rQypdc5PzwqJrU9n4KeYXcpZ4GpW3b0QNdGI2XxrPZZ4lbiiJPom0
+JpaqNV+8wvrtY/sweuFpaM2HeLR3mpUFIeFviFw36Jmu2ZpIm5LssHWMqt4VdcLsPKmfZwAlbFCu
+UZQEBFIyJbeZFwDpkuYHLsogYnQQero8l8J4EMgcfGRGU5A0LqkVcMKaPnoZqvmNsGnbB64RUetS
+IDdp7cf0xRApoFIVMd4Fxhl6KsVW6VyRMQNDMRVdIOPa8PuamAvdIR1niMqXpq3expqUkn4ZkqDS
+vGznrkCvsRH2pmeV8r1RskUuE9oVKVQI+tjIHSAjiXSaH9v+wwilLyq+DSQo1++1NVtWk9nJyyZU
+hFFiHDAxEOKrZ9NzRsH9QUIHWAWELT6maO1IsmG+/0soQSoE222E+ZSBwQDAmSFJaoYlmBMCW/KF
+nQMC1nTvlRYh7oV232gt+2wb0NiAbYKRJCQ+rbafAAL+MPHJTka4GlGjztyRo6HtbPhzZ3PpB7Jh
+tfZ1MOrep4vf3JUibICTwUvjB1j70WnTfzCoDFZNCYhKNFq+NyqRXl1rSN/iLnZPuOW4yB6aRcdh
+e9dW2DMRZhHlxY1NgPzgIDMVBgHXumu9oDho/bGhbo1HmbD7mPpo1QqaQUPuDV6/WdCxIqv41BYI
+M9B1czGEMj5gB5ZUainGiSaDtDJFU/3NskoCLeHJx6yNrIR7ONE/gLWCmXOqXJ2Fqph9RV2c71Tj
+sIiGXKCNliPpaYVT3XSkLO6meXZfIKmF2ymS4pRZg+WTOISBSVY8u3BLADv2WCM3pjEzKlIUcBg0
+IncTm8aHg8J7U/Dyges7oa4jgfi2Fb11xo3nbZLe0/FPtoXfY9m9TNCCqOSr/BNpTmqwLyE0Rscq
+xLbcfMMoNP2YDOSPVQmZTnZ5JTfr0HojxIQkaOxdbkhA/dgECypRvfOILSM8hmaDTRytaVnDkbjZ
+aFyTk6gACcXRDzFv4EuovPAtZYTyCbZ0fR1paCXTzPQutkvhNk5AOTFaZXttqbxHuqLYa8rFq36k
+MRZ7RYz2+1/Ji5KRYrioPCIXPcL23tvOocAtUQBjhR9h0g3ztCCW+StbCWQ5y0XKq522vCvTNO4C
+9B30SnGwLMF6CbalxiuTxjbjHgagHUKwLLxJer72Bgnx9KMMk7U5bc1rqrjQfhkShEfvdgQ/6XTI
+vEF9Nm/jtJakkoQhGndroV1T6qduh85HT9Hrg9+lxseJnj3AIlXXMuUaZIuVcfcUzocl6vZ2NrXu
+GcdUconrMLyZnUw8AHPKD7izHD+uB+Y7mSmWg9foZD8XZmKswuu1Wx3HjP3METdrZBV7TAFPbH3j
+zZIP7nOrxdVNL8rwrlnwR0ULTXFVxep27l1q7DUvTc+dZqfja+2V5z6YWrvcFD2zdFrcnedHjlXQ
+cJlzKLRZLPYMrgFour1sPVB9UUqDRPT/0EzFftQYySGMl/E8UVuz586XXSvU7NsT/apFJcUeFVl4
+t6AVvkHT016smHylDU4FQXvPaI0fWtjWxc6N7I4BcEtP3/TYXpBf7Ne54BGzBl27aozFbxc1S31X
+Muh78Dj1r/MIBWYz1eRjZtJq3+PMyH/bSeV74ZRgr/le3Uva2yOrMSbahzwT4SEk1n4fG4t4FUJj
+YlvFffyTuTpEwcGVxq1daktQKCf9ZQPb/ZCmbBLtmTfpxkON+WG4nXLXn9lcZROb535EZraOnuNj
+6Ik+3hWZSA/CwJreNTYnaFB0IKcwU5dIlZIUJkSzxdauvP4i3GGlEitz3DUpTwUqJOG+VVpSXbKp
+rgdgOXby1ZohXYSZnLD9XA7uNZeD+elhL0eVZ8bpnRtFJuFaClgtwMm1o6s3qMdkVVAydiP3rq6t
+t/1a3VeOnp6NWlIM9U2HH7itbR4WaZEMrYw0eyjIjr7JeIJtsqRKYH86Y1HEaY0lr33Yu3epRhQg
+Au7wmVEdnXnK/JtQ05KdqlDlb+kFvWSOY6ovj502O6kOcPSlXLcq24j3qrzK5E/nNmeQn7gHGFmC
+f8pAFCArpQ+kXO2cgc6hNUf5qwVGPae0zyw3JnNcS5uTV47Gu2tE9J0RVJOqpzlgps+03zDsu1PX
++guU0fxSg4D8iSdv/MTclzxNvYFWWRsRoflUYgJxANeTu4uXSenzEtKeEyvNmd3oITsuAC+0FKtJ
+nQDsIuqincLUXEamuBgp38LIx+UurfMcGmPvmTNinMU58a6mpTyEonnFRcSgM9FdvnhqZOoHAIL7
+Drd2QQgbN0GMmQ6GZcc4k61Smx1R/hdHltonCBf3c1XWFm0Ju9q6svrB4Xmiunu0w7C8J+edXrut
+DsTH0rqQMZnqyUCDPUYt95DDyc02xTh/2XV/Ny+mfsmURrcQCHAbLnJd1J0UtGU2pAE3KFYEa1D3
+c5qLU1Oaw14nZDIYOolHgIXq3iGAdT/HEyKjPqqRyEX2eahd58N1AGfW62JUe2thCY33jELQ+pqI
+Ct5N1Bcn0JuoQhixhpk/jOIzngQgo7G3v9ENNExphLtA6iD1zvI7jRbXwYnzaTp6k9VHoD4ddJoF
+GZzTfqyy4qySWRVBprnmYwVAugt49oaLU7VEylkIeui3O3L0xVDqfL/Fnl0/VbT1EbQnp2UUgxVY
+Iax0LkA7PlZsCb4F8vRb4NzGxwCC4jCTBQlxwDAocEPXfLFA5q/z/LS0fHcyvS+Lyxlvsbcx2hKu
+fGBVw9jSFG53mAdv/hYIuXq64o3H9pAXgHZYnCjZ6ite1iA+cUNIFJOUJYait88R2CfbEDdQs/ES
+4d7SvqX4n4aKVp3k6O2MlZy6IrJOuA6qZzBa0ady4KSoJESjM+Y0s+zCvkk6YX2zjDhfSVV57jaM
+MZrmcDs+WNb6O9hY9WXWneGt1U1cGYMyJHptiXjGa/PdtKIjNrk517DoSoo05vta/1qVdJY2eJIH
+auHWQhHUiGM3Z90J52nxaIRT+0R/IkePzNhtXtnwoGOAYT9amtAfXGQQ7x7Y6GDQi+HaFmP+QBNS
+HlynmU+EMJdXI6rUL9Fy3nlUKv3nMFxrma563TkziR0d2YjdhVhbNznU4WoreLw+XMjm+2nsw6uJ
+2gu0RD4IP65qgKxiVDcoGDDlArCONDPf1di8LrS9EZoYJdKLrKBZ78YrzEW1CcD9xNr23vLupg7p
+1LMTvs1Fae9rKc5o3SEZ0vbyKrwozFYV8DdLOpuh6cpDbNd6MFcUw3m0FK8h+bt+Z4bZSZ/jgXBK
+7cGqjeq+A0b3oEwV7uw8Y1dahlc1zjz8lda9EOoHnoOoUBrIobhCk3Pfhe5CTkVO+E8t1nyNsjQh
+ujvq2BWUsBqszNtT/1ypeJJ70536Q2mk3h3Nqe5T9CLBE9K1n0Lr61M4FwxZkVPtVa9qOrq2cSNN
+4l5dTIzMBRb+o4aZHrM97GliTpvcaLVj2HTgfppqERfEz+Oh/u/snUd25Ua6redy+8gVCJgING7j
+Hn/obdJ0sJJkCt57zOYN4PXeDGpi7wNVUjEpVWrptquWeiXqOCAQ8e+9vw2St2TATEcq3O54Y82i
+x5INvObcqI1oXWdFdhprqgc4g+BpKwe9dQcy7w27kq68I+KwD+DUkZiUdnRRouKcpI1VX3ljaK1h
+8DZ3bVJNJ+xZXE7IzGd+nZLMLPin7FKYqGACh94tGsamecpuSvA6Hsj/48RgeWsj7W+BS/OIZDm3
+L2sA+VvmfdWuTcngtRi2N8NAraa7QE1K4TiXLh68M+gczUnZWuElanSybYtwOgeT1xwRk+aDrQqS
+RFYYrEmtmPdubOanc+oHx3bExsRIAuU4KNroQqXMe2SWjyztqAGEObBG1PRnx9D3d0GSexc1aYdT
+sD7RWVUa7ALEmB27tNQ7N1EZk4lpCo6hX/LHgzx0dBef4zfu9pbB0E5s2orm3rMGlcBe22ZPBhRd
+AmT8ZOkWsD7VyMDkUkQ9q6bnBtjaPNyVbdGdRdqNuYJcusQdHD2WxyoScHDEL4kMSfhlKFapIBRJ
+UkKaZwOnaRzYPOHTNGNo4/clVzPzQVxTs3emnAwymi/tYlgFEQ+MrOvKY+hCHmwbg3zRgDDqlJX/
+olXkXczZSK1vnbXH3qKCcVV1ZonQlQU43+AOM8YLRXqjwi54szm6nUyh2Z4kE/DGMwZo/qXFFOrU
+Jn++11NuPnSY2pGXOWPnRNXQ3hl/NTETtZrWC7TC4up9NhfXzD3zjNkp7sbFpg7o/bvFwemhsQq9
+x65ePwZ6uWhoEyQY13tnDMei03fRgN4IZmXY/I7KYERfcD5gqhVxdmkKypZXNXCpN5uqGKI/hQgf
+bANsMiNcKHECV+YOXzkHgCABw8qF6F0w1WHH8D4YXTJC55LEnV4RxX0l3wFUa0Csb6dvgsDJteuw
+vJBm4qTpkluLBvacmspkjuT0zhqNbdyR8+t33lB/Feo2anCmOWK+ojN5EcTKjZ9PzDnorF7BzS+u
+RtJeq8oarpN4rHe150c7wr5QbKq2OsE3pS6DUEAl79gOmNhHgTc1eBUbpfezoU4mR6k1bkuMiWXG
+rsAvNnNijM3KRwgIWKGF3AgLd4NodbNLcj1fGGKUuOu96nQEq8o2kM9YYHs+gHeM2XMo58ryTmaH
+PRFwnvB2cvT4Gnj8rF0GFJFG2g2nNSh/HrtUnlIcoxKW52/v9e1JNle37EO8MwQuDKyCQ+a72Tav
++GJF2wdvQO/ZrOpYVreNw5SzH8mcrQzN1QLCMd8wxoxObT1wlow6XEqEcusOLEJo+78SSf5j0v9o
+0gcWAM3l38Nr/od5wj/+zw8O/V//5DeHvvdFg1Q2YczRRKHxwP/LoQ9fAIs9jnnhki2GGfC7Q9/+
+YhP1p5dHmy5ufKk/omu+kHcF7AhNjqYXyf/+jkH/R7yAwxsDjwN9z2YlMaHXfMK9WBAwYxng0myD
+rh327EEx2uS8tYJBRw3Shqy6OW1g7S+SBbUw/erD13X1Rz6eyUf5kA9Y3oFtW9rk1SX4afMzkrw0
+FLmq1h5XTsVwbIXMMPiHKamNZ4uCqsfQAUW7IY9mPjqYYGMeFw3Mp4QiCZ6G1oCVYyIlv6/hvOTH
+mOBis5yt/Jefv80fUwzv75KqpHdQoaOZ4S3f44e2KRHlRNPTiky5IfKbFsX4jolmvP/5q7CN+uHb
+INfg8l/3cNEQrFmiGcu39eF1gihoEsh0PJca6plWiu1Ftioa5b7Gra3JRY70Rdi+yexN+7q8tb1h
+vGyla99p3STY7nXk471CPp+2C4a3Whm1W9SXZUI78ZoFrbd2ASFjfWbkejCvfMrB7PNIB6O8tQvm
+XVufVRLH9OTF3TEwC2tGtYXyd0LJuCDnWMez3JmdWzwoRWfGeiIC5a3tJLRYzmry6wGhIjyy79Ju
+IcravQZOg46rY6PKT0evNfpdHSUzZtwGW9hOVxwgd2JMUm+TOBaJoqGWTNhsK+f/ZdaSDZdTDMFt
+zWA3Ta4gBLO2NTpXTYhjYhQEgk3mIc1Jo0Plf83zlHAqDLekXUMf8g+u3XvyIWxspB4mS+24cfPE
+jw5zAV7ssWSaPB+DBPYb80ib1FvUUI+wHPOgCVDRHRZ7Aw2mXnNi8KNjY3fYwQezTc65YEumXKXu
+CRUMSqEIoetA2Qsa+UgPT8kxHIofkAIs+OwtCZEKCqp1/OjNWdhu49TDhRgN0yTPA4fK+y3C7CzX
+tZrdiyoMjIdoTPC4KC9pEdfmQKOfTm3DrRm3OGxhTpMXHGsP43xWk9fayXoQ9dccvpJ3ZKMi4VnS
+hV2vKzsW5deA3E970RHhWGJztX3ntnVqk9mPDO+APVC4R2YV2jkOfjbS/NS5VI1nc95md1z95bDJ
+tdb3sIFlcWx8tIG1SnIi8UDnqzentcqTLDF5DoHGGeu91n3KfeqZXnUeGQwVV+wTFrMdzlLc7XnP
+UIaUrR1dZapxa9ztI63dTP6w6icqB4RbmMDuOPEzxODqia07aZNQ3JLxFezzk8gGPxmYdvbVH4zs
+jXxojDnS5riPyaax792omRggYtri7DOAVzpj4IphD8iIvvHNInyMpeO+iqwS9XEMS2xrbj6MB2HN
+oXExVC50K4NRwCNApH4gDdwzk8WZcpNORfwGjaXNDiVejOtyGNxr6myCdh3pvmZYatac0U3QEIT4
+1XhrmXLilmgSv9x3XuKJ/cBxAtyn8m2CtwXFHYe5EeyKcP5nqLiq/oUUJLpFDft843MoFITeOasi
+Ddt4sSAzFdHOQfK9MFFMFqbVSDOaidti3cQ8kJi3yMreQjYcDnEMnIieKBOHjZ5Me2fDrti3bZCR
+K5mSUqzLccK/xxbZm9ckqgsqriDG78FK9E9W6oxgZ/xpbtZO0vMDUnxSxuvemHGKTvXQJccmgq6P
+fKyJHzSlTxyrjMYB+sxkNONJIAhxYBHK1SHJ2Liuh2zQJrM6x/PBJPFSOJMkW6LcJJ+yrk3sARtr
+lFyCnNdDnDmzXPa1eb+SHOPvbWiU9w58v19Cqb1rs25Brs8RIg5oh9a6V4XzmOKmfUlEjdYfEZ9c
+EXUkMRUYiqcbkGaT6Ibvu8NBlWN00bVhrDZiDudh71sDnBbsXZxCBrOCpl+3DuGCISiclyibMfJl
+cRffofooY5+2M/Qcq81nue2sISVWEjhgyNq0CYJd0pmFTbkde/4tHjX11dRM6fYqyupTJDSi9R7W
+nhw4hcwRIuwS774zRcUrO/D2LehMzIBGOCYnVlPOL0Y/Eys26HPfj1bvvXr9MLxi+rj25VAxTegd
+IDl+ikWp9oyMIJdiKuaV1UMhxIusiHSvPR45TzJ9Lck338AJC19VjZdsMIpw35mthaI8t29TXcMB
+qMaJSWQuCuOrnNL6Kenb0FtbEEbR/6agehpAhJ4S+wfILUGIP3eKbNMq8bsWsbSTzUs+hSn9NnEw
+fQuz5swd8wHVqXbNW7Tj8KX1gFMkEBfvI1upGLGhw4qlZ1k8lpFkOgXepbpouTnlKgSvKp8nt4Al
+EKW6H8ju2uEEEbdLvruxzIq1JuczsyD5NVZLVWN7K0NvgP7iBVR0RUStcaY7TESsyMpvkzruql3t
+V8VjkEu33KR0Z33Ne+K+qy71O4izXmM2XMEB/n7PKt+o9/KN1djE+RuW1gDZtUx6jX85xASX6sbB
++QkT5bII+w4TfAq0/CQzTH0zwi3zjp0xepcJFVnw+1WJGkcGaYrWUwMMH0Kbk9bgfIYYmFUQuLhR
+e25qsGOMDspANuVqSEjzres5rL93mQBO5xRF/IjDv8S0alTxRR5H8VUncORvA8PErYZHqX+A57Es
+obrDjGS4FlaDLA6Daz90dbb2VIlhciKSmJ8xlQelr1vFVrBIx/h6smZCSBP86CcuKpzW7zud/xwe
+PhwePMuG8/TT48PVN0jeP54ffv+r304Q+gunQO0JCxL30s/yL0KZY39xqdwCxk0Ji3Qdl937bwhv
+KcFfspOEiiloZgHi/a+Mr3S/EBgGjfkbNlP9nSOEQ8/Lxy08JxQBJI1TBHIHJxzaW37ctFI4FfJI
+NhC6C8WYxcFMhkfUzLNrQ9aS6YvhGkebZjG2zzjbwdy03Zggjenkmz2qSlIZMPJYS6uIif9I6sZf
+Qfmo/W1vi4bLMlsmL3liBEfXxyWzpmK2Mlfu1JCwydN4esWu1y5iHwtVLUkTro2o6cAiOp3Nkd/K
+xKVjBOYp+kOHv8+3ffZqgN3abbCUu4EkaIi5RJ5qrq1IkkX2aYhn5ClnQZvHaADvrmthP3huxsIi
+sBqEfuY+zqIVuKsL0z/Ebu2+tZhRr2vKwb5NTmszUmPfwJtAPUO4CFIUkSRyx2t7aGce2YXoM7r9
+DLzkvaP4aLXAuprUddlAiQxtmia577C3171DMZvVNw1ksjn6NoUlm8rE99lwhOEI9bgDKMS8K5u9
+bwyQWC5kFkIYTNNRg21z+vrZTyYUJFbz6RCoCZu6DtKBqJCfNY85ozhM4Y2njni5kluegcRgChdg
+dJpF8tymjeasLKjD3FR1ZDMsChr1UpBEfZQEW6eDF6ju0iHJOWE1YMeHmUK1p8zU8vNgiNTXWZmz
+v+kymV42aR2LdVXmw7OyS84T2dwAvGSQdDVURfGce0V1E/UTBSNzxC5ubXohHW6r2EmYlHhJMdwZ
+hGHeeEVHHA0rcu7TPCZ50PtzrzdDl5rTrsJkCzeFyc0LD6Xqe0EjIrnFIOowfxA+zdRmtGKio6NX
+ob+hLU7NeqRO7Y68vKNwMHrOQOOEjL+C0bGbI7Fapna+Cp7UhATHs9H/VoNtiyB7qabapYVqb9w8
+n7/lsLGewmIiAmRq0V9E5ZRdxPZSZRhSoQegWc0+GwQ0ICZCPjHX1ZwXQ0bNolYvoePgvi7a2Pc3
+tGelBhef1mcktxPcU+Y8X/qJ012Q4OGAoQv32RQeuQ136OozQUb6lBN+SRI3dfDrNSjyE3tTMlRZ
+aaq1HHFBmS5aw6ozEEFWU9Q6t6BzkdPtxOt3mPbNYENJTbOz58C7gbRaHzCVjOyxSm8f+kFGLFOn
+FBR6Iqf1rq9DKDkDqJI9jr/+xgBmgLFGi+a54SDkbot5BHdiwOvgNdUMfCzJGReiD5g1VtpgeNWV
+bny4VouwWbtsWVNzHKbdDNINsLud2uhgBZo6FZVFovedkxGwGuN+lps5iHAR+EH3POuKvLQoB4u2
+Nr+haRbYCjs1baUFtKJEtG8cXZockws9IWXHj4g7iTPfzhE9GFm/m5N+H0LKhs86TdYZ9R35dZzQ
+AwUa3Sfkj/aR4crQ9jeLn4gCwapIzZUwY7C0Zmli6B86rFAckiiqtGkvHTc1SDvFMDUBuR2EQ+xs
+Ek6DDC/zKnDXnu+GT0bhNc+YPdMzkgD5S9fWjrvqaG+zdvbU5QW4OpD+aGDKba+zqFG3Gc60jKOx
+rE9jmHREmfEEd1uz7RjMaDLka0NPs89B33Ke4qjAuIAeaNRbJJ9214O/QcQLhcS7pwbzPoodhpJi
+bidI3PHgfs0gMF1VtiDr0Xm6PkfajaNFJUkfmCDRlJzijfgFyiO4eISegb5cy+03BefRaFvVPXay
+vjTCV9hktdhxPmHCPlVjAkyyMpq1xCJGCE8laH5WMME2GwPWfU+wDSX3Eto3oGaYXDhRUbyNne/d
+9jK19GogGHTjZ2y/Wc0kWiJLHdeEkNZIM+M82Ec+Kw1+RhOx4DHEBhAPbR8tcpad9TCacccuyKlA
+3WOKwuGozDF+LAfYESu7A2s42BHAhCIshu8ix+NexAAlMLmb6CnvJnvNLjrdBJMDtAbDC1d1MS4O
+POEFi2sgBFeFwlSBjwnqRQdYYIIuZzEXg0LQvUMVM0EsLbDD8SWwDPkElLcCrGmFLsYbEzdDT6eY
+wZmQNXqFfsge0cBR+dBQ55OhaDPqYCANzmWL4yO9YTnu7ZPcpBhhH0wW1zYetwtvHCHYB54ln2Kw
+RBa+U4X9wKYssdqnXZvz+6CevEVp5T5bpU+GrepgS60CiQ91V3ijTE5iQJb3nmMI+3SesSoduD5Q
+V4jElxKjNkzpdTFNDDDEWEfpsdE1AJomSrz5GnuWfR+IGDNVkmM4OSbCGeZD0lIBu2q5bDc59plk
+U5Tc2uA+84aao5aOLVyEumX6ng8VMB41VkcxJJV946VNQgTOZgh/KMIRBnHOQjDeBlSi3/gsTsPK
+EliWLkFYMjgIVZE9+705xZupLRgnQtkPYkAgTcPB1W/dA6MyYqNi8sZ647T+DCTIbHyFJ8405Mqe
+O7JqU2HFN11pNUSEEUtjtsFE7JdNPa2Js1yElXhQhruN0HQwU5HIpjaAYUq1DVocBNsa/SI/UjYt
+u51wTdxqpqHwHWBg7akEaMfUJGzjEPnBecO/H2IHADo9lwYuCKsIt1ZchppL05pulerH7gSBtuv2
+EQ3Sd3Vm1f4hS3LinyNmrDsOVuZ3W1X6G4hiMcBjDCBu+nYI9pKDPbH4qRXpy0D1253PdPXNCAPO
+6MM0Dkht46BItHlTdUoXs/WE72GJL0P8eEIRpd6pbk1vX7FZiLgf4jw7jBy9gVoUZb9Bsm6CDT4g
+7IbmXJkYbpOKW09K6oNBLWBtwhLBAqilUlcNzNd0VZSWTwJryRi3fGRK66o8CddWM4l7AbH1JUVV
+xOcECtylucvU9dqvx+IKbCXcwGJI4KYgaYbJrrAy95YnGZu5tpHqKvQd8tlU9bGjYhRfDhcl1W93
+Iz1vLvsdF/aobOiyWEPI9pBHLFGNG7mwHHLqSNutmxEv2NK7rS7T0O8f7bwLcKJQT3pWGaN6862k
+I4cgay6UwnYMY8V2sCU8icEdyNM8QFgIRa/vYwo/WQ4wetBvFU7FU0+RFba2OOdxP808vdGqBdZE
+qFvAOVSkaJ2ykjF80D4wXQyms8sCE5X8dHwPwUC6jrnfupZVgTHfMxGPabzK6BbtfWsTu0Ny6zZx
+26Fvp7G/cnITDkksMmb2GPPezftASnlUS5Z7Ws8CwF88KNydmYTZvQlpwuJKhyR5MrbZZP5FH+iP
+s/PleIBPxDEVuH1POBxmfjweQLyjmMSemDANjbMxdUoZStHHu5/Pzs2FhPyRXP/ryyCjcOCh2Mik
+L/Pj6ByUEisskNAN1pBD6+HC7IPZ2BZwB9aV24iLyu6yXVgpIl6jP+4qms2vGVfYVz9/I8g2P30f
+y9fxYYRvl2JoGWpFmwhdeDU6qt4ra7ktVYax0uMxA5lw5WTI0g4Jt+3PX/3PvmxX0aRp0tpE4O5T
+F4GLn2ByMp77nQfCpLWomJdjU/zFl/2jaPPrT/rxVT5RqesiQopRXbTRQdCdOJU7bUXQ9bsiwuH7
+8w8kl3f86XdFj4AXQ0qDgZ7z6RPhSvXDaMJhSNqRi7sbueVZMRFCT6LCqp47QJPmsYAg/Qx3adwM
+LUZklRaZuU8G0z4vyU6qlfSBS0Wg9A7mLA2GKKb1XBYJe1+DvRhshlh5VwFMyr9qw/3DD8KWWrDI
+sxnRCpXrk3IEJYlpW+zhIYbMtHJAqWyNKDKPP/+W/vRVIJm7juJ7ctWnIzhg3yEsNc02pS25vbSV
+7WCSOH8h1v3hZ+ezSGRHye7Fweu0vIsPl3YAXm6yaNvZGD2pzzCkoiga8MWOvhhPf/6Bljf8w6/O
+S9Hwxa0slODUtcwcPrwUu2chRBQlmwr+yOsMnPXOcQI4SUAS4YUWxkngAfr5+Yv+2edz3kvPkFd5
+/U+fr0b8cCFbxlQAhtVO+jaZSJnjgjVIff/9l3It9A3sqw42jEUI/PD5HEL0zBu4LIbZai9RmbJ1
+0WtyoAn2h5+/1B+vDWVarMLsOWHEafvTtSFmum5LsumbcpiLvdekv9SWm//FuvPH34vrwbS50tmA
+L9fIj5+nsXCL2guCtbTVdE+DxUzg1Q7PNEWVZHxKKBczUuRf/GB/9tE+vuqnj+a7UyHs8L3DoZ8P
+fRm1+wLO4+HnX+CPIjmrnalMhfbLHE0tI7hP16IzLmhRZg0bQ3fIVbjeoQmN+TqzS3lK/MRnjjP4
+1sEOW//bz1/6zz4gBcxaoPRzmP+8eoxzQ+fYOPJQc12Ey04mZ9R7hJv/xaugOoOgXQwH5ucPGHfs
+s+BAbpTsweawLu7M5TD581f54xOa7xEvhKBPgeyT4316QheKHBmnVmI+BTvZTTUUgWIPpdqWobsk
+EELZqXU2hUDm1w0WORboSvgrm2yOBApVltVfvKPlovxxkeENeXiv6X/A+60/vaE+gIJTzTZvaK5s
+7HvVfJ07tFtRO+oKqBm99xdX0p/cJVIIrBuWIwXlRJ+eZWFr20avBrgzqiWm15oSvhO52IPwFOfz
+uNRnvUIF/oub84/rmmLJFtgJJPenKZar7MNi0xqOJUxqFKkB1mpHp9t89GGQOSvmtdL9i4vpfaP1
+6VuVrABSLo8IBIJPmwOPaKWCGBFvCtUhZGNNx4TdGLeVIxS1f7gLGbmZmNqaQo4g0Gfvgiu/QPTj
+DLsHP0qR3Oj5+/er7z+KwwfFYek24Rr+93alq+hb94//+9muxJ/8JjaIL5bCjkSTlWUz0VmW8X8C
+RW0XHYIWeB6MAB/ZXbJI/C42wBq1LTxJyBAOKyQLaFMgm/73fxmm+MJ/TDg8zJcmE/Zvf0drcO1l
+Kfp4cdGrshwkWJAtnmqe+2nFb8raALTGcC9I6Y47gp/XFzMg82JTylYcfnWfJKNj32ce9gmOweVU
+AXdXbL4MakLuW8vmXB+HBpojxgUj3RlJ518qjjDuGodT8Ab8E1B55gcLf711fHtHDFp+N3I2Rodo
+NC2iaFT3GBSTOM01C6cbbPqcHcrKKs3I3Ee0c+BPxCnzS05C8jsksfluSXxSZTpnE8VS2glvSkmP
+Nca9qaWSrwHyeVBQUekviXVbHTp8g2AnmDVc55MSL6YTR2ptlIV9kcmWMj4cLPy5Eo7RrAr8Ma/E
+N7y3VqmS8Sy8PepBG8O7K/Omne84oNW4KtJA6kM3dyAQcyb9j5wPkUdAV7jpSdgrySwa2ICzzbCe
+Tacc4hFkg7b0n2YBxxisG4rsBqq/+91gWPfcu7r1t6OpMboMlCQma6hxUbsBwlw/TLrs/K1l1FQf
+gPsoEcKL1rm3AP1fWVPRpYfBoTwAKF652HkGOd60Lc3Om5xBcbaCxKLlGlhj8j1urfjWGWDdrrXR
+YHX2BcMUqBgJrqICxs5DPfTLcEzHgloEOwziTc51mmIxQC1flWPvXBJDA8nKU7p9SzN2dwxewmTY
+BQQ+78LIFsa6o8+FecwUSHNVOwb5wKxyrMuYOTGzgtKXXC5uYpFPHKvgrUiAQK3aLJr8TZRTtrwr
+5Vw/NlbVl2eQn0V4IJgGNs42bPyZqTAQIFL4uDd4MBg5W5VLgaYDh+yiJv8YXDTouc0eT1e3jttS
+BQeYP/qaKoj0VXiD9Qa8ksrX0Qz9Z68n+7ox8qij80CD/qubgqG8YfrRrUP6acItQ6QLhauS14Dg
+iW3p2v0+AvrJd5rgEiCroAK76bol+WwTB0s/J5eV1WXEh+fw3i0zZW16KZPXecxply5JgZP/aR7H
+IQZahSNambsskeb9NFUs135CGGIgekDkYi7TM8nAkMsyAWvYoME1N9gplDxwHYC308NSj6IwWSHs
+S36iVRd5RGwyMTGnEZlTj9sw0yGBxAlpcZ9RDAgJMx8ZwedDi49dW1V3nmfOJAl7MWle6/c67SkE
+GUaigpbtPppyda7xxxYOHdxYmajjZjRj3DLuCRu8XEthN4JO883tw/ZyQZt2y5A8uy7MhWoS6KXx
+217Kv4NoKQJPoqUUvLe4UDdGvZSF2+/F4eDgwTqgQFAonr6Xi1dLz3gA6KXZJ+N7/bg1Ave0W/00
+YOTfpM0wPJFcQ4rw3+vLO/rLr0eYrsUBpQY/RZc5Jbl1g9rz9r0CPc1s8ZWqVorR3feS9Pq9MB1h
+zvrmGibcfq294ei9l6tHHAbv8PaVjGlxZl9N70Xsqkv5SQTEvWlNhJUuB7X0tjuSWqPVOC517m7l
+VQ/yveQdCx+F7/l7+TslsCQlGKrQruLALfgFLA7U2PK9Nj58r5B3ljZ5571YHuoT6xw8SGBDXa2a
+bkvefkbFrExHXCeaaqNjSaixONgEks+JjVU0RwQT/3rh6u6rkWAa2k5tEqA7Rq6zLeo8O7ejFEUP
+gS27X4aGjMKwMo57F5MbiU90G2KDKr83QD9L/Gjp/BinvfWc1mk2bfzIT1/DBHLXVpEsqlZ1GU5n
+IVVz6CxNZT4VnGxwunpJ89W2O8Wt25etWIfSUuUqLkb5NKWBf9oQZLkDSRTfxmkUUf9G8+lixPC7
+Zp0bXXbaelnYrWcKxag6ztV4HRDOEesuNrpzq2f/+hgZaXhe6IFq0ViQ2d83dowe18NNeXZjHgjb
+2auJGuBxwUVih1ZzaKFPKgC6w3jr9Nw066RGxqI4VaEtSxANN0jzVbKOMzJet90g7L0j+ZlBQbrc
+Gsh9tCy2g1+9IVKuEgdvOCRspI6rQEPV21I5ZbUbSUd1ulkMtQ3Z2i46J8/id0fZzSac+7JsH9se
+zxL3hcKIg3lQrbDCmHdC++mVcgno0b2BcXVlzrW6FOZ4YtDPxAeZATwxhc5gSzt9tnj+FIgD3HTC
+fOzcTD8MJgcqQsQpJQOkuYA1DtTVM4pRhAdts+5O+qzDW1lQ1RWu7MCubIhVE2RGQvej3jrW0hzT
+z0xZ0NFZPsC9Fs4T17+XnsSD31x3WJAEbDwIT5s+8icWqXEiwosVNF87lczrvVk1cbjukWO4lxtc
+UWssDTTZ0FFQbFygPzXFxyM3EBE157uXYkrelu5op2uaDsm5YWSFgENW7ykhQpbgdsNrBIMCLsZO
+dmlBvCMcwnM6oeCGVFjCHywC5AAbXYdfCjFlgehpv4JrQOM5BdG+MbwCCqIKV9Fui6bVDdRVlFzv
+5kHVg2luAj8DW1DjbmwhxPTE/FOPfUYxTDw4Pbc19GqmS+UrP6PbQ9XzzIfYqFu9qesEQMyYCBfR
+gF4zKnUArMXFM0t/xaPBjrrX2st7xaKSNneEf7tsXUmL01cwe4MAlUFka5N0sjolehcTmOsdO9gB
+a8VqGnm+d2cSg6CjhtkzREVbCbEmhjZfeIi4LaY+o3rmGR5g1HZMfY3WN1TbZF42Ql2QecaGFCyD
+hJzMzwPaHmsNRt2p26q8R9eGzsWzbQpH8C1Fa6KNsZhDW7XG1HgqJvy262LI8UAYM8RPqIRBg3Tb
+lGS1vNQvAF46GSR5PQJiWTkNxHJ6M0MG+4PLd7lGsIqvUPXqHYU9abnpwQWPO+6XZtjyzmPqnJye
+RYZZA3k8Zg/ma+PLJTLL10oEs6vYF1gcaR/C0Gge+5DMTpq7nPZGpxN3jVmD63YjoB2byq26i1FS
+8cHHSRyP52rbnjZ8aTlYggB7g+7QfU1yv0jejbhBRi7oyzSCotzUZpWQJ7Eblkgp1XBdJsKivZtM
+tD510etbPNJFWu7YnrGf0jIpXijkYWM66ZRIJe+pnHn+FjO1NbHZX5PoGox1yb422CifjC8m3jLd
+TPh6iH0LgogbEComU7HR9tamHEKwAu4sgcShdGOr60uHSvoI9qBwc/cCYyi2spEFn8dLGVNCBzJk
+FXjEHjHWmOkz4yFK7TFIVCdGb5gACAfsJqsyY0VaUU4uXiZDMYTopjq4JV2O6Y2OpPIGocgMtgkl
+S/bKwi5MT7SdzktvemzuwjFaBOVeB+pUN9NwJtIUhH1TFXIPCgMtWUI+g50hHSy5bbEUp83WcrlE
+OMZfLZaUb1nf9/beMkVnrD29BP3wjeZcJn6WvOVZ7JT8XpRCbni6VecwNzN1oI4jZt/Yg9uhhw4L
+qA9sUW2lclnHwxlQzBrshb0fu4jSXnweCl6e2VBjaHSCzXEcOtWRcsG4wqfn4d6u+6HeYj9iiQpl
+pb/3UduJHTldJ1u3oxRPQiVgUook0AFc9DZ8DjWN6juH7W66Mym3w40MW0nuQcbBgHIj2mB4xzNJ
+CwWP9iVsUvOXxpXs8V0cUTVnCRH41HLjxdi09Nrjn/Dzlsec6nFoDYNXfhdk/Ad40RjDN0lfZfCe
+dddVnHvy7kUlmoNQZ4ikWQOXyV6c2rKAqNixvC/ypZMEZ5ei2U3UXH+hnVm8kw4784nJpVdDnQXX
+uSqyKj/R7Plg4aRw6twUG9GyiIxcCeSeubmMEG+WYMmp9zJolbsqCr1AlJjv8ESMKte6Jp8w8WP2
+rbFz/C7f240UAGCi9p+q03+mCh+mCsvc01PMlP79XOGmyN/+8f/yiOnmd4S2djq+/fd//f53/xwu
+ON4XRTCGSSqzPwRfizHUP4cLrvuFGQFzBUbUzPqZPfxruKC+YG9E+GF+gAYk3nNSv08XLApQ2IYx
+xCPCxGnX/DvTBVOKT+MFekUYVriudrXkHwaVP07KdNvX+WzJZIOB97su4+LoRmV3HCJrya73wKva
+WIlz2olO7VRa26w3NYs1xhIKjcynvCrbJ4GvodhQlgpaxA77Y5CHzskM8Rh4aW9Nu9I4Ai7KKAfr
+kvOeLTmjRoNTGxxxefDciFWxg873NZJ1uSbb433jedJvtV1YT00UlzsU4eIY1dW0x/foP8Z8EsKJ
+gXCW4Hf7tXRkw6TByVloBfnlHiH+GXMVEItYgeVEE9zjZcjTjQYs9i3rzOHKr/LGXcFcj59x8Q87
+g83wQ+TKgSysZkfCZ7esu5qiNBBRQU/o2DehuyWmumCOCMrX08lLCdsEp5YYHhGJBlAmZERx4Ihy
+O3FQBic1nxSUHZLzToIbM46PY+HYa6fV2QvlGL1zoNGkeeEcnHVbapbVYy+7alghZJ2TOWn2zGuJ
+3nR8K6GzhFZbz/f3BNQs50XQWvE2u4F74VUcI7bMD42BvoOmeei6rHjKDeY/KXUdOxNf0SbECbpz
+YVOzGRTOdSU0vvzWj+g8K9tDEeuE8DTZCTfAqOYWvb8LGXdaK3ZQ4S8JKZE3fGHGVx7NFIzURIWZ
+ICxVp358yeMR5IYymkPmAqvKCtIubeiGJ7DmLmGV/H/qzmS5bSxLw6/iqD0cwMXcUZURzXkQNcuS
+vEFQEhPzPONtOnpdT5Ev1h9EK9t0lrOyU15kc2NLpMCLC+AO55z/+2+gI2w6SvtV9PHUz5RUH0BT
+xWtTm8C4y+c5ZuT3vZRtJJMyo5zJxc5BdCfsP6G7YG6p13Rr1ukYiLfJlR7yptSC2qLsYOKa4RhM
+75grvTBZFBpevs5Ukcq91WZwqeKNU5bKlZorzwUBomWkBdcUkeRLuzKVZYvpwLwv42gK8T6YE9tN
+yFabEQcww1ni4erQwDah9qvP42UKGYrQQuQqSxPh6qKkPgdpKsZ3tMOyFKhOXudgG9KqW6T+YnSw
+Xdt6ru8SKdNX7HnsezojfAiFTamwrkhrDx3YHExUw8XCSXSUNbCHBw5jcQc0SHLJk8UPcutWMO4w
+ResLlu0qzrSXgdY468x1uzsR5+ZSR8Rw7kaR/Qk37qSFYFw250bqi02tDNKnIemrc1sJCK4E/Wcj
+roDq2x48HLcu1YecR2mR9Zq4UK0QZJKSefkUdWe5tlGLPWpOMwdKO/MqpSDmhQoXQZZhXlH60G+B
+wTmspeJ8nSVNdyE0KXsQSX7bEy+/rKy6Edk0DrRSui3A4/TaQq7cYIuZiwqXZlTbEfI0pwVWwhu/
+u5Mq516CQPtICas1x5anXWBTASxUR/utGSN90oeyhsKHR3YENr6CU+V0BBMeCYYuH7SwttvLzqtM
+u9bB77O4WISiQ/EN1+TMauyRbskHWwEVk+pOeI0hjneEQYJMfTxCMkdO42u0rUxH7mRlwfcsQIjK
+LhDJcBSku6HSHkIc6mblKIhPQ0BRLTEYambGP2aT6OP0FxnonHTXzM4D07M3ZusjUY+7CKi/ZgTO
+Gds0qUBmCUt30kZsNzKhSz+HMdJuSg7KO6jQ1apCE1oK4jHA9FcDtNpNF6gNPmqmdCXHZr0KyzYm
+HoLHANFSIm8tyEQzEQ3IsIIl4UQGCgTjMIpvUI1BJ3RCdt1GGDc3FED51IY48Kih0eVnQ+P5y6CT
+sfAzS3Pe5Xo1wyURmU3SeBdmoD0Fia3j4+gOS2vwYqqrKv1z5GuFPivdgk019I+ZwgmDOfez9iIz
+MJHkljBw0Mx91vBZOewxEdzxIGkr3+uDS6VRzIVEVeBCfiXmYr13HcZAW9ltQ7R97fsUhyNYNlyk
+AAmLPp5RNoeR190jrArWIFbCcsGS132xCo3qRFfXGTLF0AtAguDj+kmJZvncFRrGyw5YQ5jqQAfW
+4dByTIDmyUyzub5uHQPGBJyJ+IyI+q3mROg7tQ5j5hb7IKi8FBsCLOUWGqRhVRYlEva21+7QhY48
+iwTugAkA/Q47rGzTERZZYWwHQcDTs2mjckRVj/MNXArvGpshCJpDhrbdNKkYlIsecz+thU2L0zgo
+grLlbnLz3LsHJwCbTI7reHl8IsKWjZdWYprhhiqnJA8jllQFoEvVSDalYJzTPzaRpQjc07QuHsIU
+DEKAEukFgAptwuob/UyBGE2OkE6S/VdR25eprN3VZiVlM/xwKbMLQMtiN6LdyT5PKje+wHewjeNI
+Xbw+CW1Wdk9tDnU0dWFDhcIjDv2KYZZlSEcuw9StZYz/c/zGWYYqVdta4fHLaDRlDFsgZlTRjX+F
+DRBIqxxjGh76AEBTajbSFvoC54kI7hZSG3+RxZgBJ8BI4qJKplyb5CaJ/XRq1Kn82Fg2XkeZIsFP
+7HR17lEGKs8F8HHCwTGfb/MYAmYhEzibNNRqpYticNqZaQowliWC5G0siHlOtVpFRGkDjjFxTIJb
+gx0zk7LfLkRkW5eGp0Dj92JPmndFh2N4QD9tVXxm2KjVEpXXzjDc6KAN0TOxz6BAwClXmeZ5ysR0
+83QaD6H8eWC3sukbVcKsq6838qBCp1RNtBKZE5pXsESLZgJlJHrQgbdQxuhqKVE4OW0fDEjYn0yP
+nXTR+5JMlLeV8nU0mOa6UCX/ogbLbcyzXK0eS/YwVIeClt2Q8x/MqdwGCR6Wg1lf2y1Fe8u4ldB4
+E8acuXxsplQE8CZSqtoHU+3bJ6Xq7U098jeJaT5CTh8u/aaB91E6FIVHXJr7fGjY5AWBed16Qg5A
+Y3veskgDd+3w1LGk8mV1W8WKtcviwKSUOqAOZm6pNeoXy3LW7FQzaQUkIDirNVGUXCcBarPS1DGG
+VOhL0CTRp6a3lanQvXqnlJm1cT3XWSKZz6qZRjUgivAIgiUpf8qO5BDZSVTjVBUwTypBZj8NgVti
+IB4X9gaeCUmPKqxBvKYNNqQLwtnlRmmL9oKHvrtxapF9auSaaTgRHYvYDp/5wGX4meG1jMMORTtI
+NBNpU5dFiqKRefp80AdWfYM2bJBqW5fcc/2u7wCEKCnyJKSEIzHSETKVyYQ40g1ARPlTDb21nXB6
+0MBIeYxmZ8yqWk3ewG0adxmAXyR4QwU6KvLezl8MrcMTpQmthVmr6GcyoQQ7hbpShUVZzEpX1lg5
+z9Nele740X22rUh9YBtblDOVeOMLlcRgIEmgW/cI0Y1bbk9jl5spsSwH3BB2qOZVjG5xA7Gzv6kt
+u0coKDfZeqy7usdfy/okoXJ/GXcXFrFx1QgZQhSmkpR4wVQfHO8JpgfbVxJB2KxoRZTdZipS0A2p
+KWlXW348OoCW5ZPTJeFZH6HYaHKJq1aX6VOjciUHinl3EfQna+Q95epToznSpmI0m6pDIdYUAZmL
+oTPshQXMb0cs1zyYowS1s0ejsD7hGiQtJb1BHXZTTbbsawe/xhUgQfuiJVfBmKkFG1WzWGNaFF4Y
+owRmIrI4xgamNeXL3HApSYVAWqzcmuiu1hrRuQnMXuCfi9zGP9Mjd99wrDNuLmNlh07Fjryyl2aQ
+wgYYQsi5BDWqqctUP0ox3SWODP5UYbW4TSE7T3VZkS4dVgPTIbOwAFQkyEhK1V4pQsSrXm6tdYz1
+WWDXD3R9wRyaRrvYMIkyYyQczhjlpXltRebGrxJlRQjsCRWCewUqCK280sRrhKsNK/LOvKLqX8sn
+uazhcqGK7MzxiKUUbdrOPZMFYaQn5UKPne5mcHqk95HTbQ0EF3eloomZgprgGmxQTrqG8ZolMZHQ
+1HYGjKTJdDiV1ZyRQsX6IXWf2pFcIPvCAnMBPXHawMc89z2tYIUr4Ak4DpnPkG0j+ufClWespDtE
+QmwiKtE7zFAC58MQylo0SMlcloNulYu2vNAp754NZjK85EUhVortthtd18TCMmqJFZIt7Xx0rD+P
+GzuPwHiX8oBk7X3eDoCijHJtZJifxAIwMlzC3t0jL6c7O8aswpFtRF0WzjW4kRTriCDhVvb8asWA
+AM4mdmp12wyIApbCYKjeprZmf47gYUMsEETwKSiOs2VVSt5TEI5QGhFQk5t4o78v+CymdEmH2Uhm
+pzkM1YCllWqbGME5QA3HO1HrNowl6orAOzoAQYA6USykCqaa2XhcufatZMkBNlt2l54lFmTfmVnZ
+1jqsNfRtCQi0T2Vlaociq0d7Hqrol5lQ03lHsckmEmTJpnbQaN2isJRRDSUy+VDbnqinjM59uqgY
+bdUJZfXdZ2Kr4T4124ZBLqaDip75bJI3UnOjpGm3a3JdbAY/le6alKBATd7sWiPRwbIQD3Mfv9PA
+OW8qJz9vUVHNRdGAHwzBns594ZR49tloo6aU5nefe69pH920j2+IwAcb/NydG1shczohdaF+8tCx
+hxxP1md9AcJ4SrCQhLWLY9witvP6DK2iNe/IxRZT7EeokDQaX70s0X5YLCb7FCWgHpJpQf9EFMMN
+riBmZ4hjFAtacC8JtEjWYN1iWuR8BhkZYUEnl/jvmNkFWgxvleTRTRnpyjbxEEH7dkviT7cgDGVq
+LkiCR/mZQ7KB7LnduSj79Sq/bUEmUQ3tNSXl6Fm38GoJaIdDsf+qiGSk3iHB0otObburQAKDNsGm
+071JPSe8dfqqeekYl1HIYeIpQyzAFIXJQ0LFMWRh8sBAQkMGZhPSMNR8LBAC4Z4WKmncsBkNu6e+
+dTFQMWuCBx1I7zWWZhue1sybS3Zqu1PPEIhB8jqTX1hkFystB6idsYJn56QLn8oC1CZXbunIrFsU
+R3wiQeTtGtRUM7QQ3kax4dj7ZbOWa50UUZR1eNTqubbgJlNg8wqsNXiuisuO0NcyKyr3kmph4U8d
+Cvl5AvX6yYd+u2bJrQI4JThMdt9q83PgbN3CUP3iqZYqrMgDxzp4qYcBXt9jbWfKEXNnU/jKObsu
+jLU6kNawRmvDT2CBK2Y/DbXE33atai+1qI8Q7HgzEFxI1PrM3pKEECQytCq5dgs5rxaZppNjL9i4
+YInUzkMvla5TjbygXHUYDJLl3xJU6icthexV7N4yfl1VkmgnEohW3ScgYVC6hyqkp+jcN9yXuIzu
+etHPkJTIOzmp8hlm2cWu1gr1sfUdgYcM7q115RgT1HfXbemtpQy3eepKNogLJzYTjyS8K/wlFrGE
+C0/hP7edsnNT74J9M1nQEGNZmHxQa6lowyTPMbR7D1v1QSbXAiRmDFAvArt9zBxzW2SQSHue2CWQ
+XGuaeH2/EyXAgEwjMBEgRI3AOxYiHJahLvvzIEn7YVZQ4lG4trFA3Vye61Xaz4HSautIq3DVteL8
+s5IJsWitqtyVhuOQtnEhrDhqoa0G/BxcCO2N/DPs1Oycu5ZRSgNT03jucCfILW9qKQF7qHhmfVWo
+TXJjkWWZ59iSTsJBB1ehDbdDo2xN/BERDzZswyiNRsbaatuwcR4G30IR6Eod1QY1jkvZgO2wFuD8
+2ZUD69bEJEUew68pCjajngqU3kXqd1WNThkNa5iN37TOzKb8olp6BXwTKVXqF+K36bnqZd2y89pi
+mcIRW4SQaqZsB9WtGTn9LlPd8pzyg4Y8ptWYN0Vj1NvQMzFMlzvz2aTEGW8CoWCoAovUSAGlkpGL
+lr2W+QtbG4wnSYEiS2lWROGM0MnPycEGTSnr7FK2Wf+Gxr2qeWLeN82wjhLPQBcpsMWM8ypGaxYo
+51omIX8UWTaPW9ta9b1R3UlOpy5qSbWe4w7IYJz39kUnqhBITkiqk93dQe5UqjbwNyx3EZqpeYWB
+zUa3Uv2McnbyDVEcd8vIC9RHWUn8eR/qbJf7foTkUw8Apb/SZgiZw0cSUNEC1xb3ElGgtWNLEs0V
+3w0vm7R1nju1ki4JearztBX2Fdg+9RJmar4wWKWuIgcJ2WDoVIQZVbhxfO0xRSG2pJaAGqyu9Q6B
+W1jAs63+mkozbqQoQ3pE4lHd5xY916HgW2O7FhI/kYsbtzeQOIQhDUqxBVOCPttZGalzbzBJzDCe
+nUkeSnskdHU/QyE1qrOsYJrKdnERCSnj2R9aAQpF67EddoMhnZHgzaZBkmFa63mJQoCuxy5ZGS29
+whxbJlZUuApTxYoLC06iaTw8BaRZ1wGVSzvbaORV0OXS1ld7by6MRJ6TEGu3/eC2a8LMJcImVq8x
+6MQVtPPhMyLslGGsSK6HMehcZ32HjjsobhEc54vUcpds0YOt1wIEJ0qlLinMqLl3YWWx/mzgrEg1
+PYI5tlmheKb4fmNmGcFFRFCwRzrzri8GwLWx58Kv1sDGY+03ejzi19wwE0K4RCU9qVzVvceY2rox
+JKmhWKyGkJ9CKbnApcc/DyKtbSfgRcQ6cdq0OFYl/7/MKX1p9Gxf7eeviZ2r+lD014eyjqryp78/
+d/+B8/X47iUAuOo2/XMf+v0DfUkp3fbZ4R9/e05rbDlogeunydfZJpVUzkmC6rVFr839vQNEe9JV
+9QtHHktV1dfXmBWKUEm+vaGrH6na5mWOIgpex6/6qm++d/a/f2LHbvz9z5y0ff9CSebMLyvmuerr
+kxeQAklV/ZHz/+YYX50/yBCMPyxSQoJK3vF12g2a+pHyfVO1j50hy8dS479SN9iWoNr8nd2gftRV
+KosRKRyvNkf8+m6gEBrOCRlC0h+vr2PH/4W6YSwD/4NPw/fvBsX+CLTa0ORR1DO+vu0G9SPlqgaf
+UY/v/wXvBhaw774bzI8jRYdu4J/X1zd3g/VRp6wdecVfthvGfPt7u0GVPyLbQdrFzf71w6ArHwVK
+OXR69vEu+D8MjX/gifl1iplSu/vyOrn4Byr2fjsHfe8Db6Prb9//MrKOlQrMHSefG6ea41cfXie9
+8eefTh6Vv4+N/+rN15+ZCl+/5suffzm/337zyXe9ndTbL1f+odgXz17/+kb/pZXn+5gp6j+fi8PX
+w76hMUT/byv+8beTNn51zX/3oNHeTffl24HG/mADwXV+94Hj/ZAm3xxZU35Akyd777TU5Cgme2+D
+F4cX+j768K9mWFsZFxjv/YZ5mf3yz8Kv0g83e3Z1bwc89jmOwW+/OK51/szVXKb+L/91ejHFKz/4
+vU3fjagy75f/Pmk0BTQ/otG7PT1C6oOamA8v9E0dvXXE2DOMrSP07P0n8OuXvB3seHQWdW+/+PP9
+DsntlOMmdGWU97231Rx3/8s/n04KqwQyvh/wfF4eimQfP9XPp5cUntwP6O1rn0t5+LDZJwe/OP2C
+41r1vR0zfsGSW5Iv4ZY5T4vqZGhkRSwoIvux3/LtjXmcWd/7HeNQsP8wZRNV+MnphUYt+wPGhBue
+2g+Xe+rM3zrk9cY/Lpbf3fpD4frZSd+zGqAQ7919f5s+0zMww94ONbZaxRuL1cx7W/19bvuvE/6f
+m013XMLyw5J5xD9t93FN/t52f1/A+c52X6e0OD65+8ZtxI94hH6/NvSd7R7Hx+8SNN957Onh20Hd
+Vo2RAfDv7r9/tfL76WSJOB+bdrqU/bcfYEU6Hvg5olk//Q8AAAD//w==</cx:binary>
+              </cx:geoCache>
+            </cx:geography>
+          </cx:layoutPr>
+          <cx:valueColors>
+            <cx:minColor>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </cx:minColor>
+            <cx:maxColor>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </cx:maxColor>
+          </cx:valueColors>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v5.5</cx:f>
+        <cx:nf>_xlchart.v5.4</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.5</cx:f>
-        <cx:nf>_xlchart.v5.4</cx:nf>
+        <cx:f>_xlchart.v5.7</cx:f>
+        <cx:nf>_xlchart.v5.6</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2677,8 +5684,8 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.4</cx:f>
-              <cx:v>vendas (#)</cx:v>
+              <cx:f>_xlchart.v5.6</cx:f>
+              <cx:v>numero_vendas</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataLabels>
@@ -2688,8 +5695,2064 @@
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>BMFRCoAgDADQq4gHcBV9SXUXWTMFdeEG7fi9d6BFbJSms96GRLTTF9U3AggW6klCrzhZOGtA7sA5
-VyS4Z/rqeGBb1h2wpKlk3sH1AwAA//8=</cx:binary>
+                <cx:binary>3HzZctvKluWvOPzc8EnkgAQq6tZDAhxlavakF4Rsy5iHxAz8Tj33V9SP9YJ8z7kkxSuWbkc/dMkh
+iySGjdzD2mPy338M//YjfXqs3g1Zmtf/9mP42/uwacp/++OP+kf4lD3WH7LoR1XUxa/mw48i+6P4
+9Sv68fTHz+qxj/LgD0pM/seP8LFqnob3//HvuFvwVHwsfjw2UZHftE/VePtUt2lTv3Ls5KF3P4o2
+b+bLA9zpb+9V9ThtPr5/9/gzi3Ivqpsq+tGYf3t/d/3+3VPeRM14P5ZPf3t/cPz9uz+Ob/7iQd6l
+eNam/YlrDco+CMYcy7Ft8vxjvn+XFnnw53FufbCobVs2cX7/2H8Sv3zMcIO7//rP4t31Y5sWf35+
+6qGeH+nx58/qqa6xnue/h9ceLOL3Gk+wI0rfv4vqwv3NKLeYl6Bun9f8x6Eg/uPfjz4AF44+2ZPV
+McvOHfrvimq3eo0rbxSV6XxwTNvi0L/TomIfHCYsnMN+H2d/Ev8tql2UP9bvVk/VY1T/eeS/L6zD
+q4/ENa/zf4C47tzX+PJGcVH5QTiODXHhz/PPkWXZHwQ3bUrEaXHdPebN4zv3sXmsILjXHuyfWNfR
+9Ucim9f6P0Bkt3evceaNImPkA2GOoA5Abh8EhfmBmpbDcPC3ZdE/if62rNuoeLeqHvOfT+9+Fu/u
+WqDUPwfo09I6cYsjgc0r/Z8gsO1rzHmjwCj94JDZc5n0tI2xD6ZjSebQ33Ij7E/i/xAchLZ9zJ+i
+6l/wYLPU9q8/FhnW+v+ZyGYPu6+7B4//1uDCJB/Y8w+BwRwYFPvwWyLSOmlQc+jz+pOctqI/rzt4
+6t+R1P+70OGfhxV/RV4eUHzxHLLtRRavH/0zJDm69EA4B+r2p9w2P//2ngpKgGF/hYLzTf5+5W/F
+v36sHv/rf3//y63sXfT0WDcIDBn/IB2OUIJRSi1hUfH+Xf/0+5D9QVrcsWxbUiIJMyHdvKiaEJdZ
+Hwi1uSSASmZJSwo8Rl20z8fsD4xQRzicU5PZljSdv+Ln6yIdgyL/iyV/f/8ub7PrIsqb+m/vmU3e
+vyt/nzc/Lp6AculI26Ymoh7JBcfxH4+3CNJxuvm/En+SUZ7qVKU6rD6XZho/VGYb3PO296VyksZo
+NiaR/ueiJNbPIA3G+4zGMlKs9JuLoByKX7LMg+1UNmG9JLE0R5dzs0oUkbUMPd/3J67GcpKlSpiT
+pm43UFs1aZtc28bQci8snGFQsqyi70NeBInbt/kgFKmrIlw0vplNHhl9/S3Lq+BbbaWx43YypZlK
+6iFu3JT5rfbqoqh6z2dJetkXdJxU3kYZd3WV1KlXxsZYKruojcwlcWhO226Q+aekFG2nhGVrx+3Z
+JD7ZdRvXSiZEEMW6ltyyabRNlfIy/xglwRRejvBwiSeHiD6QYEr1mnGeExVyI70e06ivlrXv59Zi
+ogNda93nqWuQKC1VlVdtfmn3jb4jvmlPnsEH+sOxM+eLIUp9Z/glGzw/m5JWjY1ZXzbcrvgdIzaf
+VjojCVF1b/uDygybLQMjSayNZbbTNSVF/y2juqzUlGtrx5oienQ07bVixB87j3eQzLasC/6p6JMx
+8rRMskhZVVP3ntMlrb9iMksMt63toVMBy8G32CmzS9Lk0vKcwE+9IZ/IovDr0VR1avFvkWhDA+x2
+Mkf1iZNOriChEXqWGQyT6096MFQfRGapDJ6b9wWPplhJFlS51zesumlZZhOVTgPVbtAHrf25LIIg
+AzFa/CrzSofruDLM0HVyYn3lpmjaDQ367FuSNi1TaRU5m2E0h8DtptH/YhklbVVnmEmzYFlrV8rp
+xlCupDHWsWcHNIbapX7Su34uQq4Ko0hMN6oH/8sYBCJXXVwHzBVpaXySTR3d+FXJW3esIsO+Cuqh
+CFRViyly6yarpUsaM9WLMTH4qnX88iIfh8hYVCSJwKSpHgw3ljK5HW2uJ9cMRsu4GAvbCFRpRp1Q
+DYujaqNNVvgLXdlp5jUh7y8kz0NfteUgvyexMYUrzibJPKvsytTlQaoHl6TEiFURD9kXMy36L0Mg
+2LURpmGmrEbkWEddN7tYRP5XaefjrzI0HOHGVZbJheP7TLilGRPLjWnex65wmvoThJSlaij7qFGT
+HjtrYdo6LZdBEwUPRmpU+Njvk0/pFDqDmmSS3rE467QnqO88GcymdNlVdXftN36D90GUek7U1mJp
+pT6JFTFMek1tP2yWpenIa5ZFw9cchitU65C2UA6rGNsUBe8b1fmtLRZhE4ytEq2T5VAfGTSeTvtx
+a9RJYquexGOhmipuqQqN3G6UHUnzuo8G+aPOw+EHyyq/8QKrMX7orA6/ZEX0mQxWUakkiKpQGROv
+b2ld9TdmRaZCDTQ2xSpJM126wjS6QSGLn5hbOVMaeVNFRbGgaR82KsqdsfEqNow3g9PJXzUjcaDC
+MJff8y7RhTsVSRl5LQ/8SKUsI6ZrtrY9qVE0QYQFZRlTTUeai7HPKg1d9BlVcS+qckGtLN05VZZq
+L4csHoxgSkY3i/Niq2NOpRdFac7dMS544Zmdz7YdwHPwBp4n1xXjvlgwkXafAj44QNe+rxOVDL4T
+KG1ZdrJ2IrojfpR+SyfHvAzHnhQKkEMKNy0gQjdJWt0qKuzqOk+MroZYiqlXpIBF5P0YUC8ddEzU
+GOo4vagpNW8sg7NfvNV+oiJjGgMVdZl1E0R+m3oFGZre6wlLnigfk5+GFYSRKlLWQKFNKsHqIbY+
+yzGI5NLvaRl6o9MNiRt2MeMreNPJ9jgLNPMGRvmmHsjAld9lZaOqsZZ6a0jtX7C07mKXx0nFVMHT
+eHCLPC+FqsKOVu6QMP114PrCH7gldm0gHbIIOiO2VM90EqnALvjo1qXMR2UALO/7kkq94YHZXlah
+n45QUZN96XQmMsVMIfJtSKS1jPPEF8s0SMSngmmz2gSk9Q2wzB/Whg6a1g2dkj7pIDYu4VcsCMEY
+g3Yd6rJfC+IHySqpfQFLjiwzVSwV2Z2oiURZzPDHRVz3/ieHplboRm1kl0uwvq0WTd4G9VKkoV5D
+fexq2ZUkFioeiT+5VezDO4Uxo4sujXWmHIj1pp+a8lYMw5B5qdT9fQMI/UwnpmE7sdl8q6wg2up2
+aCrXGuxQeOnYFZ+crrThsUw/K1SSVGanmtIyd0GSh+GiJm30KPnkfyrT0SjVVLXRD6bTSisnDvmd
+n3DwLaq77pEGo/FTy14Uar/6dBDG/ChKoGwQ/r0S+Nfb/7gqn/K7pnp6anaP5XNV6h/H5nriP95d
+dU9V01ZP73Bi/W7Z5j+fq4zH18wR6F8X/aPQNUd9f1W9juLI3zXKfxJkvnrwIAI9CLT3I1CGmPCf
+h59/xum/M405mpvP/3vkSe0PiCAtbluUWERwy/kr8pQocSEkpVw40rQkypZ/RZ7iA7UcIVHHRLpH
+TASf/wg8GfsghWmaBBruEE4d+ZbAE4HvXtgpLNNhtgP6XFJm2txBxXQ/7GRGkMc0qEalRZMyd0Jx
+uVq1bc6LbTCJuFnucebvCrMf574kxzmzTZCijJsAmENypSH9Nmn4oMykHsXPIU3MKVW5Hxn8LuBO
+Nf14nd4cNf8jqp6XxwXh0sYKhc3FzMf95ZEoT6oRHhuGT/LbRjLrXkdWjArgX/I+sSpOjuhICvFK
+JjjSB2JZpg1R7tPBRyaiJPPmYnO1vFp7y6VSy4vdcul5y52L9zsP/3ueq9Z45e0ulhu1wTm7Hd5u
+PQ/H1t4WxxZbvMTZy83mylvj6A4Xb3Cq625wt+VK4Za4/XzKssD1m/vl1WaDuyncTi3mw8vN0n3A
+KXgE5c6f4DXeLJRy1+4adHEu7ni9usLtLzwPt3rAJ5uFWixwx6/eTm0292qzcHHNYrFwF67rzqct
+cD3uN9/M/YgXO6wET3Q7k1+t3e3nxXY+dbHdqIV76Xp4jVWvVwUW7+Lplov1R9ddbnbL+UHxbCtc
+ees+4q5rnLq9vFuv72Y2gVHz1d5ul6mZ7J2Lj18XGT0jMWfOx/byrSyuak5i82a3vHrYLO+xqIX7
+6K637t0ZSqZ1qIPHunFsYk1dpbSBbiy9m6/frwJ1pRbfLl2iztBhhxmkeEEHILS/olrXZShnOhDR
+183tLeTsgt8Qyfpi51247sXrLDRnbNgzrhcEUY/aJ+ibjY4nENx5D/fQFsjpDAF2jnWzEPeEVNNS
++l0ECjcXy4tZoZe753/4e/WwhG1cQVd3D7vlw+5KKxjO7uEBslQfV1Csze1qs1qtFqvVR3UJDdu6
+F2uo87ePH5/V8aNyL9eQNywPZuG5Nxeugn0utjfuxQW0b7ten1nOudXM4Li3Gk66zkfWe+N99e5h
+N+DYOa0WR/j6QiTzI+yRmIDkSKyAQ8uHq2ABs4S5X80GD7bd4mejVng1W3WgsMLtr3Xp9uqXt16v
+f/Xq5u6ciogZYF/TkSMAzhobWcqslFeb+6ul+2u9idRytZyZvlsC47y73QyTEAwEsVDAQHd+610t
+7737ze3O+1oA21bq68X3JW6ApVyt1Or+ugP7PKDI7WYFvVtsoeelWlw+xmp7B1F7HlXeDRTiwVGf
+FpdAkqWn1t7iBji03c0A87psxazrr60TlaJ9xieFMTATmgrA3qmvwNxO4bm/rZbq9jcyY3kA0QvX
+u1jiIRbA3defgKHg9PojHPmgSY792M+s/gp434ELuxnXdnfeledebDZA6/UDrAVgDcSHl1gtFhrw
+ulyC53A969kLeF8hnOWDt7m6AmBDb65uA6W+QIuWkAm8xGILK/wK1N6qZyzbrDZXm9unTaCebueb
+fr+/eojU/aS+B2oDsAMOXd3i7dMTtBGYv3Yv74Cx+HuzvlvcrX+5gPz1nbqHFxmUCtQKpvrl4+Xl
+l8vtevFps13/vLuBp3Bv4A7cxeLOU48f4YjWNxfeHUxULbbbj8Ds7Rqs98DVZzZj5b/AbjhXUIRv
+We/gl3cX7npxCVN/PvHzHT6eQeHOu7j5+hWK6P48I5HX7R014kOdsAO/MCRcDLzkBX6hu6udB5cH
+01eut/3t5NwzemA6r+sBOvyHZJNOyq4AWdAEO3ZXsH+Y2kx19t5awYrU99nXAy5hFxuFE4EOy9vZ
+K0PQEDxe3eKCjbpEQLDEq/nazWZ1ib/rOzDN27o3z4EN2LqcvSYs6hKWu3kOF9bbLQxyVvXlrINX
+yxlOQ7WGCoH9QOulBzy+mMXorb/uEOl46ysP17wugNk7/MMmLWYjnrWpKS2LWlISOR/fA8Numhwk
+hHmtbGp03tiUnSsZbxavUzmU8t+pMIR/6H86SIiPLB/FuNK3WVYrP4+dhd8aSHvzIX1AAU57UeIY
+l6/Te7kqQRD8Exutc5sjQThcVWpOUjgDSmtt5fBlZPfDMkw783dq93uu4Po3l/YD9VNUmJBS2ujS
+UzEX4Pd5h3pJFFfEr1TMQ/qFRDrbNOUwea+v5SXvxNyjFBJJCMLz47C50ikJG+lUakh4KJGtD0Wr
+kkqIVhXOWNTK1H14/zrNQxc5y0uYRAhqExt5FJ27Ofsrc3Kmy6wbK1XonG6JoYXX1Um8I61tnVne
+CVLI/JDnOILNrvmIibTMSJG1CUilXak6J5+WZdSWbh1nKbptr6UgJziJHgKaEWgd2BKZ4eGqRGnl
+tpFnleqiOt60UWytLaRvH3nBnKu+KuT6dXon9GOfnjzCtrEppsLqQK/KzalcZ6ZfGou4s6IzdE6x
+UFDTMQXF8jDZc7guP7OnMSoEihroi3RuHE/x6DVROz2woNNniJ1iopCWjTYsCvrCno/vAYajK8uu
+41GrYKSJ13YVvQwty3cFt0cPhRl+BqBOLs5m0qKwM2FZR6bc8da3m4hqZaYtV8KJ6SJqqFRBNAVn
+7PkUKYtwJmHNJnKFI6dgGkIkxkC0GiuSeg2KWpd1PFHlZEF1xsAOQ75nA7P2SR0ZWIcOU1WbWJWY
+iqswlMHKTkb9WZqMf+x5oj9Xdvv17dq4T/IFIyNj6BMTjAxJ5vIKVUGMoAVnzPmUzlsmt2wLiT4R
+x7pYO2VYTUZYqTJy2uukKGPXsHN29S+sBcoOY7a4kM+Nwj0l9IXPdehIrYoa7SE2FNYy6grrTMni
+lKpbNuMoSqHa7xynv5UjoyrSllZGhd6naztpsk2tzP+VlXV47wCvmjPGdVIDMXvHEbEwi/MjxIjR
+Hqkii2nVoF62Srv2m+D8O9VULt7OQEk4obPnsqmcH2SPgRY6YEEvABmhb0i3z2pUsFOzOWNQR9nv
+rOYo6sxNZcdCZxgzG4dkQsOO2lTkldJonKg6Z70rpjBelGUZrPK+YKq0xMr3k2TFRNMbSnd5qybC
+wzMo8lItLZiORSgV5nM4cvggTpQhsezgZcy8Sa2bvOZhvQlZm9VnJGjOZnQYUIGShViHMlsI8zj0
+GOrADs0BHZwwCpMtSWm31Lpk90VX7QLLGLZVXRaLKilMxUDfHcYkdCGDxmycTTsa+kwo9BJpHDhX
+WKSDKipGz47Mvkdjz0ajSKuS2D1Do9PJLEWbPmBoeQS0VFHVWbd122TDGem/5DkoU8wv2rbDXoZH
+I2VD1prwFAMrbLcq4sSdWJufkezJ9e1ROVKxsSudKdAAbaR1ndcGKXV77RurjAdqdL4Vca/fDHFY
+FwQMxmGkgThH2G3LPmeIKNGzHu3KNZyBux1v8jPcewk+oGJhUtC2mImq+JGfzQvqJ7VsNDqBjnVb
+2KNesKSOV6RN4+9NVE3L1xHhFB+hsvN4joCdHCOCnxQY0BHwSFbc89LrtG1cUJ8Erm1n9Y52o9N4
+Q4Ao8Mw6z9E9WqfVBoPWBdcqxczERdwXxaYM22kXt0Z1gQ4rd0kSm2fg7xRz52iTYNpFSM6O4G8o
+7QxdoBzMjUzxtTHaoV1Qp4tXfe6QUoW50Xx5nb3zHQ9hwZkbEowhBYJbPI4FWxb0uagDjbZxnXuW
+1pXHsrhTRj68PexEKI0IxmKCEEuII4tI+DQlvcVLNfZtuiDJ1C6HRrw9mHYwzYqABIEgRlr5kdzy
+EVMsnGJUxZBlv2IJx4xLLG+ITgRGHsgZ7TyBJQfUZi3a81d9QK16sIBWGFDxTZdFMrFcn1bTeEYz
+7JdyklJgxgnawdFWmo/vEYIdR2kYTqVKO1JvQ9vIVkWekW2RCXtRSqu7H3rDSFSGMlL/dlPAuCm6
+VYivkZCzo0XKZLCnpIH3n4zGuUu1oFcmoa1bUqE3RWVhLKUM0Tx/s2bO05LwEFRa0JsjB4GcxGqY
+iREcYfqtKjH2hNGPOFQR6Yy3Y7XznCtjfgtpynNldo+5dlmPNQ9KBFRh0V1Y6OJvMtaIbYTJr3Xj
+yybEZFfdnmHrCZGixIG6AwIRW9DnLsce1SrUdMJ2EOB1a9FApVFke31U1FtRsPZy4EWsctupXR11
+0RnSL9R2droWZ9ScJ+Doc+V3j7Tw+7zUGogSxOhSU5KzJWox3e6NEgQVVB+cOSdDuHWMLZU/sKqf
+oLNT1JiFwmDY5CHFTdcM0wLYb/JaDn1qRUAXhJ+2RC3HPIpQEx7xSJQN5uOcfCiVbo3poTNoKs+o
+ygu8nNfEGYPIUBmwjkEMI1il3ZO2hFYmo1eXI78gaZtt9NDWZ7DlFCk577Fg1uxo5RFeNr2fF0WW
+gZQOaoWyh+GV0/gtLMh4Jjg8xTzEQjABUxDHlEfgojM7jAZaYl6Bk2hRGYh1wz7UZwz6BJXZzcA1
+gnlEyqM0tg5k6OgoAoSJCQNCVh0qXWT2GQGdogLVhg6Ahk2PO3awItMOUr/ASN3ouGjVG9+71snf
+nJM7hKFCKTi8DfrHzz2FPQuSNNOhESSl4rr1l03S1G7CMEeDcsiZPszJBe1Rmo/vUcqLUfvTGJfK
+sbrPtszZIqd+eUbXZq94EAZgOShNztgHzEV7/5CI2Qw6K0yjUKZVkI86HvRdxvpi4wSCT6roh2H1
+ur3Oo7kvKZqUOpjuxNTPcQo26TROew2KPHDAQG2GGJDME9d3OpqqUPjhOh+6YDFGwlnlRNNfxmhs
+a5GXy5D1ye3rj3OKyRCkJTDdgBl+drT+kKDxZg/QmkSGD7I1jIUOre5Mne8UEYkBZo5hZFRO+ZFH
+s3Q/RXWJSZ4hqmjkjn1sNV5NnNI6YwOnpImZaZSMqAPscGZk2VMZnyc5YSOUM4/zwY1DZinSG0tT
+dOu8McYz1E4ty8aUhGNLji0Ox+FBO9TWkHVFqWQj/IukG/WmBIJ6b5eQjWIHR/yDGPK4qC1TWbEx
+ABrGdVZ9LNowWwyCRW8XEdiGBApoCEEdcy7JCyNxonCOUWV4mfYOd81IhG8tE2H2h8wj7fBYSKSe
+W+d78rGnzmiMWfeTiGW7bByoV/q5fQZvX1Y5ZjKYDRISfRRkbbPg9shk1lQIkslCxa0ffTRGDD2b
+Ot0WvXCURTpMUovbEjN70HXpX6DWvbWcsjzjW+bg8AhZYN8Ys0c9TJj2cRAwadI6TYDp7cnqqLlo
+hrDOr/kgSPdRtH3P3KF30mhTdRiyP6OYJ8wAmcC8OYBZAiHWkRkYRShImzmFGrOYYSySWKPXl9FH
+xgOOSW0f/79ZR+F4KOrP2MkKph957JbKIZsIUISHYaT6mlVLmU3nLGF+7EOOmhApqmPQoOddlodi
+Rb05GCoJsVphFLipLYvNmE9yw30nPKNCLzkIUjZDiIjcg5LjZApYaZFKgINFIiLDG4tU24pgbuST
+UzPxM+yz3j9j5zOPjlcHy5urjIAvjgm5A6UNEy0GjKwWqswzw+OOFp9120/fdStTzzRz+h0lkOGi
+DFmxzipaP7wuwpfqajIUTyiyHESRQLVD8lmuSdD1GKkmaRV4qSV/ppV8EDmKU9rJM9XycxHlS/ic
+KSJhRScNFVZ2ZKV1H8URNXWhcoMiYdVtu4ap5Gck+SLZcEzOUbuFIdDZ9xyFeDRuMAFXNIWqYqOa
+XDuPoq96GjPuVaXPr3XSTZFK7BD1Ipmm9TkfcUJnBcGO4Tn+Q+XoeHawmkqZ5GhtKyP19VIEydi4
+jm+G90VdsfiMGZ4APrRJkCZLVPxn9DtaLKNGgkl4TGePVn0NXEzuTR9bTjpepabH61DcJSxDmjz4
+fd0sKbbXSGXUtf4UVjwvz+RaJziPXizmM7Fz3ZwHRg81iqbYTz/pHmCvQ5hr1zbfewuxfE4GR6Wj
+n+xq+7Opg/DNrgxMQAsdVTPMagrrSK9I5qRCl9BkMfK0cJvAZ9PK6cyoPsPuU7JF0oX5U4ZU0uTz
+8X03k+exj6nTQgV163/qxpjJxWg6/kUT8VaeiRtPEXNQskL10SH4PeJmwykNjSYp1ISq+rY0i/ay
+z6XhdVbR378OBSfAz5pJEDQTJRp97HBdps/FKHOsS8bS/xk35vjJbmS3SvI0XaOZGX55nd6JpaE+
+j4ljgWqAjTGBQ3opN6KsHQvgeiFtzwjRvKyqAN10XPN2kdloN8MlYmmoFB/pRmRlZVA3MTaOjLwK
+FB/a1kfLL2cbk+aoA76+sBOYaiOm4jPKkbnYeLiweMitNGiNXJlZFrt+EdaxMjSafq5v1/RnM1Yd
+WWn4mjOZ0ym6KDWCJHseJDnSlbbpzZQyCbp9jurN0Eb8ko5oMlZ5FH7qsQvko92Fxpng7oQYMZyA
+EEAi+MKLI3PoZMezxggAdQ0qBH4OKy/njS1S1tYZaDmhoTZwTmAoGxVjDKQfMnZifSu7HjsM/Hqa
+3LSd6Gq0OnvdVn7s9XlgnCmynFoaUuq5dYJaMZLFQ3q6l4EebCdHe5NbG2pM1MsCUdxOdpSe0dBZ
+A4/CABtRFPoMEqP0cJCHpLilKXYw+bki2Ax1ySuUjmIuwuXrmnmSCvyuoAKdQOfZkexBF8nKJLME
+0AQbcvRC+8S+wA68/s11MBMNR1QjbBRwBZVzKrxHpQ7RdrPGElRSMUgXU+jpuOYxemreKGyiz0Dk
+Ka1AdWrOYxBUcPuIdYRMFvaTALeMprnrmukmK3SvLMRTSupYnxHUKWrz1neMT6FEjLzucHFlXscW
+K2Hc1aiDbR5VbFkngdyQYSgvpn5qz6zuhMiAyKhCO0SCpjhCyUTSsh+wIUD1XVmiJxsS2nlBYfrn
+oogTyg4Sc1EM9VlOnPlB9qQ2lNwMsX8P2XrXyczLMDfgyaSwIxVFfnX3uiKe4CKYiLYkBhQcB63p
+Q2L+YA55E9i5spxQ5B4eR//IKy585Rso4qLqz8O3oyM8NiqliEnQGT5221NhZ0M40FzFXeS7iRF4
+nGLPXd0KY8H9alDDYPbe68s8xVME1WIuP891ppkNezwNm9goM+xmVbJOtxSdxEWasUAlHDtP/+8o
+zb5hj5JVYiQME0G5Ktsm6jaA6iZd5GPSlW6UlBDl6+ROuBpHzk3ROTaBTzlaWNZgC2pYm7lqhqlZ
+TaMwrifLdzwtar0wBmfcSh35X/4FotYMKzAHZEtHRKvM6c3IZjl2NYOJEcZAPmWj9Sm08mpJLM2W
+fR3yMzRPpGfzd8kAMQmyetTbD/la21NRx6zKFTIlUwVhvnXKIf0y+mGMr7Bi2YPISOUJg1Qb2g/Z
+GbB5GUvPHSFAKCJq7Lk6Nn7CCzmwNMpVKwfzpqXYc5iGVfBo+LrdTbbhL2pf1zujrM94vtn+Dt3R
+rK6wFMTRKCgcu6O84U7UoD6pfIqhIbQzgkXMYnrzukBfogCyTok6JEbKUEc79q+dxIb7iIYo2Pht
++IC98l3oNfh+sHzJ/aF4aFoRPL5O8SVD5zwXJTVpwQfiGxEOxRk2mRGSChFE1kRZr3SUi2unnRLs
+1UZLZSlYLpTMA9Jho6sfn5tYOEX9OYo3Bb5AAXH2IfXOKEhkcoShpCzD1JMGDFNhq2PYu06fRiZ2
+C/tT75UDKZM1isXm0+urfwlHDD4Ee/TQkmAUldJD+ha6EQiTARIU21w3+H1MSt6vaGjbyzdTQokU
+lSG0cZ4L7IeUkDtQbIWGl8x9R+ZePtn9iC+GQD9/aXViDM/A0UsrZdAjDMvOo24AhiPG1rGRxENT
+w53QVP+EA/GSPk48M/FRgWvyYhVko/5W9rJcxSPjn19f7EtjAXWU0m0E39JEQexosa1lJW0N6pga
+iy/M0iJKxDl9s0nOVPClGwh84Z2to0AAFmJjQrtHhNgbzjYe+WVnD8bmX1iKTWerx6SnczxTU2PO
+z8BEGhjZT+U1BtJ97MslpDs3B3bC8lHcpihVzl8k8qKdhN6pyPq8zVVAuPAcjW2OjpkFG8z6DVvb
+bow3h6SYgcMXpqBHhl2kL6bB6oCOhZ5FZBgxW6SdnV4K1L0WWTDw69dZeEoXMXWJb2OZC5aYST/U
+hiyOCPKtET5f9vWGxJq7KCZkHh37dFPWFdlq9NpvRBWX37AH7v9w9iU7cuNMt09EQAM1bSVlZo2u
+weVylTeER0kcNJGiSD79Pdm4i89lowv9LxpooNtmSiKDEXGGmN85Cn+JMUjj8ErRdQIZ/i0vOJPC
+gvaB5Ju5jiT1go7iPS1lgT6mK9anJCEZ/EvosDzRofPrOw//Z16ADAvy1TNkXEIg/ybCTCTMgJMl
+cLUwRa/4GENejwkOY7P1ndSgOQrx2BGX/R8CDhYGt+DsipMCRf79rZth0EtnUQT4eNENwS+8tGXo
+X+JiE+/krm+OO05eBTZPXKAAQAxHZvf7Usz2o6ooTFGiXWdtXEp9iifL34mgb5t6/3+ZEvEsgiEG
+ivrfl4GpkYqGNB1aDozCVHJrbRfIYYo4aZZcRx+AJ45XIiX3zDF3XIB2PrDN/Mft/MfPeBPc6Bzt
+Bsnt0A7rqmqXFesJieF+mgqVtqIKhylPTY3TjMYbiIyHfz9Mb26sf1YHuQ9slRidVHRwfn8J6zRM
+Ay+2AX4s3XaVLbk/RN1mj9Ng34MZ/vZZ/3ep87n+3ww6pIXPlIUXR1UNB5PKsk2cnt75rG8C3z8P
+VJ0bwyWyORQ+bw4Isb3I+oHD42hYi/0qAgOWNdrPYr1MPa+ij8Vs2H/M5s6LgkUPlA/68rMW/81b
+TD1d1myqunZnfXdrHDHtiB38TrL6l0cr0M+DBVYMLU7xNlXeIBRhBA2mtnK+VNdbLFNxYVJVJBeQ
+6mvof4oZEf/fN8ibgPPPowG6PLO0sDaKkd+/2sQK1g+eDq1yEWcAgOdtCE0R9B7DvMUVrmpM2dv9
+1G0L0PZ/X/yPLQM8H3sfvAgQ7RFr31zJqzUFJQwWK9liuotoZb7JQXp9Z5U3EZ3C2wQEcaRR+IAp
+sOA3q2xygHhlSuKmG3xnG5/K6Y4vrjqQ3JGD9rit1TiPxzQJ3Tvh/I/jh6VLgM/gwiWAU+ibUFfx
+KWKCq7SJo6mP75NstsvzYExCaA1+izbvoFF/Ww/nAnc+cjlQ1d+cwT5QmTD4MjVeUFvLHYYusHyQ
+TbaFtf33b/eXpdC7r9DCB7kJ5/DNo81Qc60CdJqGoeo4sGUMcI0xGULasr7zAd9kBOcPCBYEIHb8
+U8B09M0e5SJfYrfteCodTdc9G+cTYUE1CSm6RwN/mprtG2+4cunNnmb7Ox/xj3N5Xh7QCJI6MHew
+U38/IgmpKuTAfdJgk5YnEkxS03xFYzoiKfKDKXr49zf756lIkWHhtWLzIF/8R/v7P4F07pxgnCGs
+JVLQCyFHe1iG3rzzUv98qt9WSd6cClGlFVlEyhog+kXTlTlciRxYd3FfPVibZu/Emb8th+7smZgN
+EQWe7/eXmI3onQ5l3rUIYtHIjzNd/dA3fSZTudXlSH0yHryRAz3+97eZQgUICizIk2hg/b5wj1Yj
++PsJadJyyl97ARhz0v+RDoSPBKcTXA3o6AABwon/fRE5ednDiRpeUXic1yqaxhYoxvxOB+7PjQHx
+Q5SjA4dKBrn4m3fIYSnQ7bzibZIA9cnKYToQ0Ncu/+sLwyrnHhEgUTSm3ram9JTu/VwS3s40QWYG
+uetxiPR7++HP8JEjJKLEhTwTiGt+/u//s8nRqmc+XUreEgtrsb6PcL3tMb9wDGD9vz/QH1fcmdGE
+nAo+jAWEQm+vuHU6K2yHQbQLZGLfYfannrKsW44Lz1yry4lcdWiivrPf//Z8YEKkwG9BC4Ds9ffn
+WwNecLfgLfKhXwAZg8auk7GoHYn3d07y35bCicL9gnrlbCz5+1Iwp7IDZF9AcEJq7uZ+Us1ky/iV
+gmD4nw/TWbkHDhI66ue23pt9HoVl8PNWinbew3SqtPy1pvl71IM/vxf2w9kqHC2m8x55E291CkdB
+ClUrNmDhP21TCG0gtL+B5lXfRv0sb8dA1vewsT8P1++rvokTLPcT5FpsaNPYhgs7D+Y0aZtc/Pte
+/DMXAaiJDhquTcjPgW+++VbOD2IhKEpIuQ33Smwwqivc2Cg6J9dxz5mqh52lF7Q37Ou/L/23B8Ql
+hsoWRnHogbx5QBf0TIhzqIfy3LX5logbYaL3Okl/XQVNbaD76PZCQvbmAfkGxhPLhrZIrD2m8yTA
+IYvf6+v+ueVR0yAQpmfXLGBxb4qqqYjUGJuet9EW2Haa9lknx8BXoS4WlRjzTkg8b+v/6ebiMbAc
+xCgwz0IVhWry94ey3UiXJVDewmSTnjqxhIcxg+ciX8+9qmqz1Tvb5C9HAF0/UHDOfXOkx2++VW8o
+JbbYYaNZINswJgZmVZCpvEChYo4WnPIbW2itDv++Rf7yWhGPQbrBqjnuzDcfz5Bz8rVY3na4fI7Z
+yMMlGza0dCcU8+8J5v/yUpH854DkcPBg7/jmpcJk1BdVt/BWG9NNkJ4h9WvAPijzZsgr3V8IOg3q
+P4dlNBrh2XW+4GARVr6JLbSASaPeNtWOAEMb9JbYU76b9CKkk/3+7y/zLycBwBWOORrFgHPfMqjM
+VgAF6K1qwaEvGhvbrIEP5I//yyLoRKPPARnY23I4iucOfD6jWhCg90M/RlE77lV45wb9Y1+gfYJr
+DLgfejZnouvv+9+heAO4yKcWuvLlQaLt3sIpeD/1sOb9/O8P9EeAxH7PzoAYskRIed6y20Z49nYj
+fEFbPmXpEwMzi10OwUPg2k5sjaoWN/de9g3d50V84ftWpe9sEUCof3w61E+gSiJBPjNBIKT//XlR
+zgkIPgXsZrNIQANOQioTeW9l0LBKzhXVKtT5oIKsamgnNZd1VKooF00M6I4th2qIYhV/DCr1/ddB
+gItBL3dZzuS5L0Z0KD4zL/jILwq4fpIfo+KElQ0ZIgan2UHYUfBDtHcRS5vej3aJWmMB9/KTqfia
+Plk3V2Rq8r7fz/9/H5b0dSl6ZX7FJpr3zyEJefphVcWqfiyCwhoz2fwQHziZhoXXMKHk6mqb+XAV
+FTznAMe49S+uHw0Achherrw4JnQYYcYbC7tXNRC2cr2N5Nkpgae9LJ/R3knodd5ZHf2oNHRPnwQK
+whTumpBExWODN6OK1krCtxE/fnLsal65Mg2Q23H/GHuSQyo5Gc5YqwCSi4Z7U62fHE1XfrdOGUkv
+ZFUxNAjxLFP2uki/paFNl90V2cW6hC6kB2M5ejGNjGRFi4u112Q/GQWqVZ3L0sLAFcqUYSgaVS2V
+qr2fWdROPUv947SFePwh5zFPhpOBS+DnRaOcta1c4b76AXzZiX0wQxVAdt5iPaBQsRo/NQez5AVW
+3REErWkYx/BxzmdwWqsOthEHp6PFNFuRSf6gzx40qiUp2arPGfOF/jJvq+w3uDbTcfuoJ46ma21H
+LtcepSyr4os+TYx7zAdnBKqILmwL8EoeEcprmaxb+Jy7Qnafhqy0CznCPWC38lJudusfin6bra0h
+mSnpw74Xk9zh993tnjdnVBY59uBzN31eC6j1UXeNc2Weg0932FvDHzmQh1KnnfxOcWMnXaMIKTvd
+hn3lMA7nNsq2j1PeR9nPJATaCTSl9dJHTd/ZgsMytbRrrBu/LXBbb7tq2jssj4NcPXHmFTjr25yX
+4eTh+zy+lpmIuKjBl+g97ha5FfsXxEqbRLXZqAj3y1aCBnkiuvI6rRM+rlnXiM6k21oPZUjYT72O
+CbxcOcs1ZAvE+zh6KakPGnp16sJqG/jALv517qsQX8HrloZPFHbg3ce0YmZ8grLVyTarGNkbyCJC
+UZeRYWNrp8FHtwp2ThD7oxkfniUBe8S005Zj8XVfihvveU6fDS+3cCzZhAjUgHan+6jVbIo7crF4
+CeS1Hhfq/etIFQ7qUUUeFg1nn/MAisjIybhG1+maqLlqAoMf534ae5IVson6Em3AOiQCWMD1RqDi
+rJrYqi38yHoCFKtlvQYLqI4nH030CIrQWEItF8MPOK55FMb9FQxLAptkKMrZeJMkHQFLFR4/oCXX
+MMXuxNdsWd08NEUXhegx72cYJ0C141nF62BAkdlqBNhs+6645z38m5OuWrfmzIfQ+qqAEzc1H8QU
+ZXK9XI3s5+20OsiCdWNRFMDAfE5zlt2MKc/VBt+ioR/7S4NozcGRjisz13A8X7MmoYTMAo67ezkn
+lyFVCF+fmMz8tj2OcBIW1UGPVbHHn1Y2ofZBdldmKT9jkqS4dSY4d12CNKSTw9wFutd75bf4oLWH
+JVBbkZ2v94ovfrlY4OUxcDAKzSR4jVEqe/WjhIV7Z4+G+/yXmYe9uI4joaMvxZDo6UkVUOOD9Qey
+EoiHEJFOP5IUMblOLLKFZneDtddRDtfCJ48CeXuOzLTKk5RdnlzrEl5UDcJX9K0wCuZGw+bny5UF
+edozFsMgYl+6uM7hw36bs6S/gy23OiayEnfA1WbgPaqodPZUDpkSB7SbVpfUAL2n/g7e5DuEu3O6
+UPKSpOh9f8czDemLyblGWwBipOqEnwXIIe7F5hvwEGR6At06gom0H1nW5jvS9EbwKlle0i0pSVQT
+BS/uG5LBV/4xEYNcbmLcwOx+oYPzN4h380ugse+fu7Fa2PciDKV64IKUxYNZolC9gAu0TEc9kaFo
++3i2/oRc1cNe3MHBmx4WotjPqdLxeg/a6qCOrhtc9Q1bdsKeYzHoLg9rnozjj4pRnkNUuOI9wNnd
+runPgVp0p2syrQl2NfZI5B6yVAGeIqM3+cfRhyVc9YRTyPqpY1I8s6400XhBd53r4hhla+fiC4dC
+gbkm7CVff9kShtw/raDLuNe9ielGGm0ITb4lq3MwvO/H0eWhhULDatnABanrXF1V/ZBBqzH1Z1bq
+2qeL003ux2X8WWwqimQ9lYuGUrbvElN9XSiP5udioGrApTRho/c1mGEhh/v35FO44G/xpsyIQFq6
+9VSWVkJ/DtxjuR1Itqc1iDKwCyonh3gO6oHeXhV4oWsNDdUA73Aew1NfgAcCjmU8EQBJbhpAK4It
+Pi2fXQfg9JntRP3oxpmX6FZKK9ANnuPnmKBj1qTYi2lTLN2qvustlI8geOHGrlTUu4d83N1Fh/PF
+bkSf9mOD6LO8lDGA31qnVrxqkHoepZ/4j3zIjLqYJ5c+zPueP0B02pl/roXXroxXB52jzq/Gfem3
+j8gUSrSk+6xSpyXA2OIEMxNmDhh4QV2TTtWaXQQdgdYCuq96nuICH8sHcrmuPopb9EZ7TH+Y4XbQ
+gIgHK4JskZIfeZ6xG1Q3XtWzkuHrQHB/X84mWehh7vUOCrYx6rAusTjmpY/pkUZjd0LxAceQ2Ys5
+AqmNLX07q3GKGgvSeLsCvdhOO663VxiGO9ksDHdMkwmLjzJ4CVcgC1arwdSCfROXerCFr6ktwR2D
+U1yF4QOD2207eKLdVQfLC19zPhYXQq3Gwa5mL+M2IriG6vi8VLNNiQDnI94YbdZ4ykmbusRh/sPW
+9Y8Id8lnnU6jrRNf6U+UF92nrHPsVw9k5yFeYX2CN0JIdOyHCThSVKwRzsPEq72uSo1kFaYxc34z
+M+XEwzSFUZ8Sqvl86SZodI5bahL3SUBlvrR0KchQ80zvgIEmbM1cV4oemC9hX8/xZ+7O3wGdcC8m
+2xjG4GePHGUqWhqQi4CX6BUuEV4oW+fjlnyt9kxddzC4dy2YzQOeAXb16Qku9gsU5WHgXyZ8mqEZ
+dkmOKVTfGX7tCEpRls0jaH9KJA2KHXXkVOJf0YZFDt6JcuzrlMfd8yo4ZxcYA7AndYFMBRQMXlZT
+U8VyvhMyL/tjkXD42VR6y80xnXQESL8KoqoxPmLycMEHs7cmWYxZFUCoo+wQNjU/7oVW2UclOh43
+e064qZUrZl2LfnHuNiu6GTLrLq26Zuz2IoYLP2aLfFhClFxMHVfZ5ZRKx/CHCEV2WWxxqFMog+Dv
+XhgEMx0GKo+jsuQuAbVq+hZPAsb4JWImpgi4rWv7bsFfm4qiEgdbWWR8eTFkHZjiY3FdSV7QUykR
+w7daVqP4KULq9p85TFdelJxxn/B+GNJ21FW1Hk3oIjxLrMcG2RKFG/cOuscVc2v2nGRel1cjgw6g
+6VPbPYaiw5iVGcz7a2cZkku770jybJirpM0n2rkGplMVLBd7N9z7JUm+aFr1N4OcFK1NlHYGwbDi
+QzMyi8C4h5h+WpPIf8EkEFbVxNIhfkw2A7uCDBQH9SLWxaI3JrTB3BYcS4yUAR8eN1/Ohojc98hr
+n8JGYOsSTclwPcWYV9FMcP0OtRaT6Nqu68v0Ap8qs8ew9bvGVh2rRwu5CT8wNxhWd8Co+4thJ0t+
+FKDqiNpCxoSBCIahHRwIU33dTy5+oTs5E6Kg5uRHNCH1oUot2KDM9ewUEhvBgyjrOnUiyKfnz5gC
+sNdzWQjMK+k2xC4gG5j5Uu+QSKqLFXrXe/TeEtkCP7Lx5VKYGAoxgpoF5ysfiD3B3NzxixEjaOZr
+5Cqo2gQ+C79AkwF/T8S3TLfaUUjhIWDpPwPWVz+TOHQ/+nnaf8D6pf+6d0LejBm4eccUVfp94Jt4
+GhmRro2woV62dIz0KRLp+LQKEiFmqjikx8LlEklBxCrSZkgo0lMeu1hcplLpJ+DsWRca1Puo3oIZ
+08cVGjt/gAJpbnvGc9wFBLdWAxovvLGYpOWAZHBEgWplmt8DlYcxRYCYqTqCox+tR1KshfvEx6oU
+l4YKpMPGRsUhSIt7qNbDmJrDDK86zMshpH/lHZTzNUhrkXrim991a9XC0hNC8XQLEgWDxDcNOWQ3
+W5XXNHD4BIBIUf2K1sT9igypfmmaobK1nC2+2aItA2hZatxnINjJAXWISg4sQ3kO3svZLNLFavm6
+7zuULl2fKlFrzCb5DrAENZCpYoEUmayfSlZM39ToSXqVQp1+iqO8HBq0s9cFPhzoAh+hXBFzwzMG
+7knfL/GznZjFcZlC9yXHxJEPeaDsa2U8wWyeZHuoSLWL04yMB/RJk0FVXCiAToeB8+W4U6WHQxW7
+ktX9NvjbfZEuOkq6u28F7EhFnRFvvvMUHglweRnTvGUuKU4yWm2Exk0XvuqIWkjl53J0F1bo9Nu+
+0w3zpryfvs4IHuFQbCW/TXgS/Uo2tX+wBH3wY7ro/KvtJH/qMzhkQNIo9dWWd0iRMoAptvbg+NgL
+CRKub5d9UL/cEpFvIyZFJYhv3n8cJgNLFj0F2d/xYaGATZUdf8ZSr77ZfSXEwRMqMTTKye2aKIfB
+Sunol19dTtkXn87dw4Yr/D6XvXntTVaq2uKtfS8Ws147tcTI9Ud88xr+Ky5upMDYmlrK/izbpRq0
+hYh6iTkEfb99qFaU4TV3wqCq8v25TCiz4T5OlBuPczRk6MjHcDM6Wu3tVvNlyIoTkMv4NTciy+FN
+oskdXTMc9wSyywKNKtTwLebC4CTTwhWoSsEkKIE2EV8d9tRBwiGcm64CMF963BMU9odkwTCu2lBj
+TgXHu64ro0zeTFuydfWmC2wyZim9Y0vZP4N5IZ/2ZEMfCIXfpjEGrFqiGqNCEENUXrpHIbvsp50q
+ebvrQXdXrseYtENVIok5rk6VphHbGVHBGKzuMl4KaY7OVdUT7vRpaG02jNccCm9zuU4y/zLZlNw6
+jEPKjnHZ9587JKzbVdGt1WNfMe+gfRTQGOjUZazBcJrlUMauEBdLTEfedHSmP8oldSABjUxe07CG
+Z7pvs2nWTOcj7I482WuPL3NSgCL3o7V9eGGd8+4G0SJTxyoRyUHR0uzNAsoE0tm5Q3HH8PB4O77y
+Lyi606dMpN1HsULoWw9myZK6I8gB2kT46JccuLqG3O8cwtG9yo+rHeYCY2u8uS+Mx0QofMIYLyDs
+eRMgy7qDp1vqmn4OOUY6lSRfDh3S9qwhkkaXmd3xmBVEEPCBVHtR1DjP9DsQPvYpmqn+TEGn/wKY
+wF93csNMHNPL6nO52+kHOoHyft1m9Y1nAUOX8JiY/BKlKH8xZqeAWwY4/+DB7RW7TEctS6y7eewo
+wsx+YFFqkzqmbMGbRcxAHyTJ9KOEuQeK/QSsCETPYrm3qFIxOoitPL6ePcm+WK+z2yLn61c5CPo5
+LQCh1ZpK801ouE7VTqL/2Wg15Qphj8ukXjGM7CsQZiTJW191NyFb3IopcvF0i0Ee0QBpldtu5q1D
+khLFW9x6VsgJsq6F5LVH3fFKQM16LYec4ncnMyQhIG5MJzpzjCvydnUogSArRfEfhmk5MUX2W1ae
+h4LkgGJNvfRJ0TW6n8rtgKzJjw3Vgb+Aps/uky3fba1QH4VGYU5ThVrGThdjDj/C2s55MTVdCsH+
+Vbn69WtiPX3KQ0URu0kYH6bRlJ+zLo39ZSU68TQbPn03oFjfwj5i8schHzBoa4ILxkvk0EitE9zA
+EP8PS/wo7YgrgPWwzUSIzYsHN0bF5y2dUcqBRUyfe2txdeyTh+onX4WTVybi6bXUKJKR+6bT1qZj
+TF6GcoItHWoGhoK0pDBy0shablTAFMF6pnKxNY54/o2QXXaHftlhfIShYbimOiHuxhT1BPpAwJRP
+cmH8Zg0wSjgxUsWXpRbFz07R8Qr8dWQx0iLFiE3pntBZLpYWNGS2N64kZd+W2QwCvURDDFaZ0M3f
+DgCbvu/SVPnRmCk5ZrlFRj8ajtFrybrq12jZq/sc5D5w7UdYktQiU3JtKng/XgPKnDAOaRXDx04J
+MzezGRMJQ1aL3KuEaRSGb6Wd+rhVpNgbtc9paAyN3Q0tO1/hKjTDYwkX3qLGlCmMpUrLLT7iG88B
+mRukzirR5BXkIsjdIXpPdJvJTN9IqOP2CwGU6Kkg+9pfwTUSl2OPtLqvEYvIRdVHzp6ibi6Kds1K
+qNSzDkGGoll2xWIZ7rSRS3UIrhfXfvRrhgIs82ldYXjd3bDnuNXGogOMKbd1vBgKAEWHAObhS8bm
+8HWpXLS0+IbiBnOckritdo3NLQVTnw0R87dKSdo1OTKU7wAZ/C0vdtO3qJnHD8Z5Iu8jWDGY7rGa
+0QRu3ZQaTOVh27C+xqlXSDuGjW4fKEu6vC3HcvHfRCCRrkdhcApIafAVIqTqqAx1KtLTmQAAifOw
+Vt/zbFjHw7LqsL/ubIs/lgAOL7yNehycYLeXSe3Vd7VNsj+W8Tg+wzidft4mwtdmT4l6jQbcunWE
+ivtTILyC6VJeTcd4zbFLq3zb5YHorSoPbmPzcLGi163rZKRxuOlkhZwloCz+mFON9mLsEjgDpGhg
+y3aYRelqWJVO7lCWfMKotCpVH4WDcQKs08NIarf27tVQjjQ0KeKxOCiJH9NOdsHSrlwK3UbBu1sk
+zwtqWS/90ih09IYD1PlKoac2L18JxumV3XcZzi0FHy3LQ8lJWR4wDg/0wn1f/N6EIRvRmSo2EzXE
+OwykQ3dunZsJmPavxBcRbH/xHYbkIqv2+cvCNricsmJb0gY9ZpQ1vkg3dHpIPs1XmiZEwqIzTdEd
+grEeusTr3KtmDCG73/gubmxE9rHFcDaUQl0Aba/p3QoT+X41835MEuQYYMB0oAGrWWGIJ4e475Gv
+WxLhf7fThzjlyNs8D5E6BnR9aZOPQ/6gJFgDtfPbjI6bUMUHWNKlRY25YdsPCOIdxvlFPprbHJ95
+btVKejSs5qq7tx7GODUaJSI6WbB29zZzcOdsMlWVK7ZOQm8lY/oRoIpCbe+nMT6Hb/l1cHRDmIZ/
+G/74gGy6Jiy2T0mg1d2snHEn0PX5vR67OGkzeEQ8mArmjfDzNnB8H/M9AVwV9xsygUgnMTluFVpG
+z6rnHTgevLNxM03jEG4FFSjVMlyDqi7NlrnDHAiMO4kMu7we1jK+WOfZ2HoG/v/UY1cZMGtk2aNX
+QacOwXjAgRrAlelqB7oXCtE8605bl2IKKIyJZ0CZjJuuLmE6zpp8Y+4rHaWJTj2q1Ev0VNO7qdjz
+X31a0Q1xqzOYWYcNVNSZlCE6itCJ0K4ssU97RhSp43jwGt4YVBYAYYZCNbOaQfj28MZyJUgXadjR
+5gUfVnzY4Z+WNcBp9wXZ/l7eAiRaPzFQ5CIA/miFwMt2D+j6xQZAwLAvgTSeafBH4wF3k4yp/Eb6
+IaApSSvxxIDQzwdVkMo3BPXBfYVJj3sDdREmL0aRDugzeykuMfgQul7jAMvUGZwZxrZA5ro2GzA+
+hS8ZJhQAjmZrk/GZfqzWGHV1DNHlIyCfGC2MJd6QCG2bqI0ogUn5wsz3G4ZA8hZ+3OJSiR45hu0I
+JlXavbffEuYjiXxvn2+4UDK+TAwjT2ug6QO4v0HVmWEVOqzRuK4HBbTvNkwZGmB9l5lP/4AMmCla
+zT+TbXV3ZGTmmbBpkYdqXfjPLBW4Tmfrwrfdk/Uu9WP/c5lg4YHiIGV3sx9zhCA2Jc9WUvj1WnSf
+LopkSr6zDSEPj4o9Blw0bO3mxvVLMRI05kOwcNzayl5CkgwrF/i18eyAe47eAUHTjyhVw9ykXeZf
+QJImX0YgE7jIqt7pWm4x4bdwKwWe1JnFfpx92Xvw/QPGHmDM4fpzjeDZgmw9/0lg4hg1KEbLD0my
+c3R6V6c/EaeQWfdmi24lP0ca1/fsYcT1aZrdxPYa4AjUtyAyF6Rmg47zW5cFmgOaUfLBxR75LpYc
+7xJHctgaWtx3ZWERrFZMtH5cypEv15oVCcaKJspmbVdItClhoV0mF9tCYZWVwWEla02MUaZ4Q+dg
+hVRTNDPaqc/x3qNZKuCPt9cZRdujgzVJdoFLMEZfWzEA4UlQ04M4Ow0cqzHxNwh76YjyA+l9nZdk
++sWIorQZXb+gFLbp9MhdpfcGePmgjxUdYfqSuCF+WJGCRE0Ols+9Rvq/IhyUPcAnyEc2KONdtCLJ
+7hzc35mabS0Q6yBPskPhLykUgT/LjHNaq3ijqsEm8S924+Spi/k6AApe168YKIlurcUgOVFvzs73
+OaxJv6+4ee7QaY7v4dc7JfcLuPAMLTslMHrjjBA7PsbrZ4bOX3Tiqd/uMXNUq2uWmxDqBccrP0KM
+CPyPk7Ph8dlr+KC0Ri6flkM1gM2jydCAYtt/GwV6sxBRrihoySoEYKJZ9PcJ1LDbYTV2PXRMA+J3
+oPLh/foEScUqo/xBxEIseNUdcoUJbNBvkQAwfRg1QnHjucOOLaeo+GXSyD9Sv1l9PZc5rhwPzU3c
+FDZzX9EHL2ijQUI+5bC97S8HCnr8+ZqDH+Y8TynSv6lD3w42NAlr0NYNL9zZ+NULWca1TQS5huh9
++pkXOxrPMHmG2SoHBPx5k4UtahkpYPhZh+GeShP8zWq1C1JaWsisWUSZ/QLukQHtAIvgDBYraK5G
+qlFmwTQ++o7eCdriI4KabQTgw+TGryr6JAldkgMmtf4/zs6kuU6kWcO/iAiKmS1wBsmaLcuSN4Q8
+NDMU8/Dr74O/jYVO6IRudEdvHO46QFVWZr5Dmok/JqD89JFDwHg7pv8b4CVXPWSjPv+cYHK98EBM
+aKHYyMudjTrE8o16aLvDiHf6JQ0fdfQqttBXsqUyDyI9VFS/chZFP8yi019Us0yeYKnGP3p6sy9Y
+eYr4AE5dPNVpYv5pliqePJIelZ4/2NxPWdXG9eQ69djszMEVvyCOy8XTwhQTACZRGNmFmuXj95LR
+XealFpdhE3SwQdjICDv/4zxONd3DGpw4GfKZFA/mTb2zMiWWu7ZJjC8tbhPATVNp/AmZuczMlMoJ
+g7gZrXFvJwtswqQ3VYWKoVLa6Doy04JnBhlQ/In9Ou+rvtdzv+DbXZaiUsGSEWT+yeTY3UvGTdeB
+EjIk1Z9pV+s7s2RgrC/VXFe/LGHehB7GROaLok0gQmXkaN0+pYB9sDNFSN81FWW+YNqv9ggdFmcA
+VcTkBnaFh0vVCboz0ZoHeFEYytu81GVOcB/Lr0oDPMYtzbQPbxHSvldba4j2o9IVP2xJduQnJc1q
+L1cik/tMy+VjV0/mbzQX9GfKrK9sr+nQ4xjPBk6G4lqfZ225yhojUTw9C+k2DZFp38LVlVngcA8v
+Qdw5NUFJMXvkdQPuEPuI4S35IcxrO/2iET7oPMd1J3bMqUwe0yyaafeYo5LsKnhJzE+PNdrKsrMW
+X5t72MMiW7IndF1W4RX4WUT89WYJrFJbOo8rEoyj56b502KgawQgPuLSGosww8PStS6tjKnsNPTH
+6WvMq3ySy4LIeErdpPKVjNjnD7EWYzdcVrXc0xKK7tp49efIR0s8KWrcf0fvwfEr+xACylzIqQ1i
+w2kNP1IkVAwjdLSLNuX8vcITIEAadgnQpekE24w0i8NZao30REKLAXMTyJH4JrYUsYlVd8wFKoR+
+yDt837gN7HBnTBQRnoFj6r4cOiW9MucxtDxnUicm/A44E/l5SUP16MyW+Ueadfy9JKTEvAS7v6gE
+KVHgwIEyHpYs769mQ62SK7Iz62qUql0ezKEcEt80C0g1ZA50a4QYRBMUg6bQgFkiNk9smtXLMPc8
+SK0n0X1B0fV9oiZA4qNUGBwsjgy/ZU4kZ9SUiw0NiKsjZdK1aL5ISZqyL+ipZ37ONNwe+aze3Ih+
+rH4xgNtMvkyaZR5RX/e/rCE3d6oW9/UNrXswrw5R5ExQqq3/3KFIfs9gq39yuq9PhrSgToQSRx9f
+zyKyt64mNQ+SQRq3HXQPGGJgsPgoDfME5DAYmT9rWJBjujk2r3ZaEQT7mG45N0lnN36aJS2fYrTZ
++p0jS8Mr49Z4cqEevca5mJ7U2nZ6r9DK6bXEIFoEaTwo9+QTCwyVmh9vO8U3w+ibp2yqVNcjVosU
+DRS8E5hjRkPSMkcywfLIKhdqt6Vl5jYGMLQacI+nzSXtxvFEPxmvpuiMb7pq9/eGQoHqtc7Q/tLU
+qCQfoQiSQQiseVHwgKR0Ya9/SUhJLT9PhraCs4JnNWafOsa0g4RkwdEv5IG7MP5pG6PZYS09Lzo+
+T3ViBQZMmCQIeYHCh5Zrc1ZD9oGfaHoCbRnPMPBzCWHLW2MyohU+sOE1jJS6Kh3anSBymXzCYCr/
+nU1DU8HCX/LbMifz3M1DJIG1gHeLwE0HY9pPKbB2PVlF7c92ZvBkISrRHSPYsSmya2f6ITM1e6Ug
+QMedFMryqIlZRbWi1OOjEc3pgzYPgqaRGEHhuD4q6cPXAJnOna66HbqwvikMTf/WlFT697SddMOv
+YV79mFHWvUTVXHxtrYwUGwZ4CicsCfWn2JwrFPhzot8owNzxsSqj+jUeqpWBSA2SeSM2bt2hV5kd
+7g29y32hzH0KnASY+GhZkFrSGJtLb6zL7s+A4OKHRQnKXOxE53zqJAlkE2Bc7q6ymETv1+0SfROd
+gEwkQXTWiRoxcIVZjbznpMB62ut7ZpBP+jjdFwwmk7QujfQVRh1FyNwNvyeYxYUXt+sublsjqY6L
+zMrnCkCYDe3mU+IrNAZUD+wgdj2aTrSiFiuLr+NOlrbfGFrDPTzyl/Z1bPQxoz1imuO5qsz50ShC
+iENtNHX3URtCsUhXor1nGGM8w0frlWdq8/xWN2l18+ZT5VY2XXSHnAbz3FCUxoUmOnrAzUpR4sCZ
+JgaRWdU7gU1T7YmmonxRo1Ezd7aa05cdmkTcwJksLR9dCY0r6jULVDoV9uwTZyFvkHqV93PPeJhA
+qZmcTuYOlBxwBFB5RDD2npVYl1Ogx7N6HBXgd2J4NL060gwfTbIY3pOl9D+FvoDyI4hPGDEjzJlC
+XRnjJxEmZniJJet4W9Y4xuw5CgQ2qHnclZXJHGQQ2KGOyNz1hn5TIS2uirlqrhSD2OLZXdRlQZcb
+9eIp1hzeorcYHgbN6X4ORmc0R4FnyJcyB4onc6tCYEnDfKWPNxL+7CY6VjoKe3qxSXVQxxpmz2Qo
+8guP2kJtsLU49mckV38S9g8r4N++b9XC+k8acW7tlGYoX9fwQJUG5oGPN5nEhR1OBbaG4KUvtTMK
+9A6xHpXcUIpDe4YexU3eIC6AHmOFN4udM81voREHFyFeqiFwwyqSpERGcrmYJR1sGcJTp4EB+2Nf
+K3N2kzGFHUVnXYwa26fRLzMTzAnPG7XKqaGs7EHtpvTXWC32jxg+OITMWFe/t0tNUWTmuO4YUwzb
+JtJUNIZRr4ak5dagf2cXpldQ8X9NYZvXvl5Ksj07IT+3F0fDEbLM1WOqSfhM0wLIScBO63iXOqTs
+3qBQiXopcB1kI3fULiDlxM4OpzvmMlmlor+WkOGIVjrXcFoO6jFua44EjX/3rtWkfifpQJdBOOrj
+S61xa7L5jPGnVjJqyEuz1PoytHC/vNKtkqdxBi6jJzWa12iwR3Y45Mp410Psa/CGkgbVvJ2BYliN
+UC/5cA1cjWxSHjN3iiCyrQTEymTa0GGoh4SAG5YvDSLS51Fvq5tSTSb9mOZS3ZfK1BkHgmud+XZX
+dbEBa4KWIKOA6Cfkw2VWgn+KFUmEU+d4NorS4Ti5ZgHeUCRWSwTSaPYyJAWhAz75wNuDnnGe+Ahh
+A4+pMy2Aj8G5zsaEaWatTnv8GlEZ3YNyyiybuTIN/FzaEnQruDfibjdIO9f3TAmipZ32evNcpdr4
+Zyy5g3DkAnEO0m6uv9quUPIriL7Jl5RoUfj2uFZVYMz8COgySeTZ5F7P+JAqX1AtAmPby5i+GrEx
+/gHjY9UmazM3oG+VO7eNUdAQZrrhQj2A/y2oa+mYzXd0cNL8EptV8g3SQdeRcA2yhzKTKHBGJqQs
+md9IGFjHiJZae4Wctr0eIJr3vkO7azkyHVEm8S1Y66Q9wrBYfpJ4DfDhJ9sI26cuypCC7BosuOwL
+BSj/FZfv8XmK9Kk/gMk7VeBSFcOx6BXcIamvaW5H9qK8uFiiYdvlWO5N3GduDBssdkiuq+prC4wP
+sUpN1J8K9IgyWJLMDHeQQ1yoUZSmRWC0cIRAutcDYPQzZoVa6Qy173CnWGTYNkwzkD73satq537p
+9VEFrFx4TBTK9QGm7Xi9DO1C+20hMgQAI/1DBGm6Bx8SWU1P08meEuwR9KCvqgbXH1iAJJlZMdMr
+bk1CTiMyin4HYoiAMtZ1HbwUJc6AGBS2DfgtNo6ZXOzwWNNbTjApIsH1K1UDMgSCK609tmMSbyas
+1Jw9nfuMu0nXgOYMaOR4xjUL5XLZDBqgla5EX0kex2EX46B6iZmMoMOilopCcdyyfcdJxVWhTos5
+9LKZ8A6OSMPnAldwimkIJzbcriUVr2amZeiHS2w0cVsdsiko9MH4HS8lMVBJmETjKXpBj9ZN4QB7
+PcH6ocnr/BvERF3uqOqnpyGKi/hCIfEG20ikfm9HGg5bk5DsyM4qOwFqKMT1SHLzWqeD8xW7YBfy
+EZOKwl3uLkg6F13rbhon0X7ElWabQZpO6sViRpW8bdyquR/n0lThbjgw2Ks1tS9CPWt8Q+1hhZGR
+KyivS6v9XsY5dW6KLShBHhJnGNAZN+4JB2BIaMyg5OplriiQ35T+jjC1DL6eZnAcZYqj0Vj/vQeM
+zh28Sq26a0IjODE8ovAZJUZ+nHFWnQIID8CD0Hzqlxl9XBvUEN7qS2amqP9FU+noB1Whx+fTJhBc
+JarF9EiCi+LsxKhTfuJ+3v0uIq0dSaiz6AmP3eF+jpuBG0Za0WvdzfN/kQ3Nbp81bvbT5ZJudhYH
+CySiTp0aC5rUhhc6k3L67HjAbiNWODeoGEj8KL2zX/Toy9dK2snoCazhn0Bx6dGMbTdfV9XovuL9
+ApsHxNisQQGWFMqyrji/87RYfibUVjyVyOG09YU9GH6apGa3wnnm4KuJnf9I8HZlaI9YkNsbdOpA
+PZNV09EOLmTRsloKyCeqysePgO0u23HWOk+1tdHkHBhKDMsojZqdI11o19wtjFNyImOJfADZ+oap
+Y+oc2KqlXplRybCBRIx5dSB/zL7XFVGZJA7qUa9JQj+Ex+IXdNP0Dl1rB88w0QplByM8vOuIT7FP
+mi8o05Kq/6rBFf8mwW4eTQscweB2vCqqXH9Ic90o7+t07LHacZNhPmrOMH1t47bFBnVpdGyAZN6F
+h7nS04de6i2dp3FGtDKrC91GchdMUxfNyZwdVZJi7RKjolyc2tpqAq3j1OyiLpmIj+7YlBelMWk9
+ctzRcFx6qybxwdQ7/jhGzvNLJotUfLzWKhwNUjGnP50K4sQBi4whvB6ocSB0MaX+YYI398egNOBT
+i9XMpYzotYdGDJ1shgEDvaFT859jM4WPIZn+b0yh1jbrPI0GgYAccIcUR39BDwLTo0Ae9FInExd5
+0wn3UOdjBsqKQqg4TvA7H6hVJEONU62FPm8iDhrFUgu/zVEiepmm5TkME5okQRgikyGPtO07etNk
+myaqgC9pA/0uSBgv6QAe9FxPkGv0J22uk5+TA7PXz3ObLBf1X1P7teqEd2VqwDMi8yfJBXaNs32l
+F9ZXpdAg8vSYhty1iugWv3bCfvSQv8FmkrZaPWZ2Mv9wekt8tQC01J0IF1UJYtcFnGAuVJT4WVOQ
+muaKXt4Lp3MemNxYvahKa0JYqqpI84mHtA+ZDFdeIUlTSnTNjf6KnzyET+i4xUWD8GrYCXzfO5/f
+oz6GaJ4vl2Ws4IjQQP3dZkn0otFNg1FbT0UCEssW8zS9UGaYgsPKu4TgBjkACvz3sJxjI4CRtADD
+2448wLDnb+pw6yruPdA3kmMo+V6v45O2i5rOvulSU5kI1bkw6f2l6XMjs+TRDTP3DtiQjssYhouy
+NrimynMsBWnLlBik+zOR7ZWkgVJDg2XpdRViBw9hVfjTimlV7Fu3To1ghgvhwvPq5ktjsQq8LtT1
+hknVOk92xhDTls1hdOg7UTj27Vp3mgSVfrloqzZq/LAf6O3h36RdtcNifIsyopiHwWXC9CHKkr3T
+SNIZzJub/0YEf1dJXXRaMDQqeHnioCrgTbMhfbOro9wblll5RoDIN55mLNGdZBGP+mRj1VLDu9Ro
+jZGiMUGn0hDeZKV732XhYnoU6zFJQygEB0LVlG9joi/fwmToBYTwtc+MGVz/aqStXvvLSB/GX5hA
+Ea6+gjOAGz2ju2KWkQJ9lrLam3VbXCMXa24cN4JwbIuCzD4y7I5BUa4cJyI98LzWzkC9y5SN4R6i
+qBEdc9G690oZ46LhuiD2X/RhBM0ADm+DkLDfIrHgrr/QUsNVvLZjjnJXNgq1aAfsvqNYLVNkiGlV
+3WuzgBYAZ6xFRBOq4F1o5PpdPcWzDBp1EobvLEig/Unt+9dBH5VxN/aNSPdu7Gacqdi1yLQgoC7Q
+56IoDQQtweT3FNGY2fWLIga/qBDAk5jNGZQLt9aSS/zH3OJ6HBLnzkyyvA70YcmRaVVw7G6R/ABq
+9+gUeBm1XvwWWSna/Rwv4RTMEy2rfRSTGAeCt9gEC0Gc3CIFpeLF5lIRdIW08CGpbXKJmtEXCkTP
+gSRk5qz+ycuJYeoJuo+HqptxeFnHAFwzEKF7hjNrAEJWrXVdm+DOvr7MEmqxI1O8GI1QwLwlcnkK
+QMqNCAWUl4lOKky8EVp2kKMf+l2Fcv5W5SK9NWClqythkN4x3VibQrSS/znhQPFHX5deId1DMq7U
+BLDp7Fz9QcY3dj4lSkkKOjTOrZB6LQ6h4Sw/ImVUr5GYDuoXxGT679EU+tqcyaFnMksouqAxHC/g
+o2p5i7hAF3D49T4GZmfAgQ8JiBNlT6l6HzP0IPMrQ+WDDapqPvZtA6xc9xbwbqa27sWsRN14GPne
+Xxdu8Olo0M24SOme3Hf6QA8Jj7P+CkIEt2QF++SG7IDrIlfbavCWlibGwUnqhgaWhprgKz3JnBSk
+GjT4UmXm3FtFBRmW6ya6rXOYxN7AW/4OQ324XQs9qDhqjh5MUar2Dp1k+CuTdJD9QZ+oMIzJyaGJ
+MFLlxY1nDnMk49mGn5XTrihSjHV3uOEZv3KabTjDajJ+jI2yo/JV3foFnyErp8lW5r8iUTewIMKM
+lhJq7lzCSS/lo6hgABBk4V8YJp7HXtIykDzgFM8/3NlaBvJ4HS7ISKvWhIVD2ghP2sgfjAQtgw8K
+Zf00nca+5w5q9X0VRuDcbN1mp3ZRQ4rfSF36a3Se91pKc2eXTh1tbNNZIEbGTnG7clDnIJ7q6ZrM
+pWytYwSiPe9iQzg11nK1ct0O3JrHrKr0C4eeiOY5GMxTwleTFLctYsDfTagut1bi5J03Qqzoj91C
+/+0O7VmIt6liV7yb2DCrHVO8Ovtq6axcPlEXKE+KS2MUGEiq8POtlCy3G6V4ycvFUMkBKY9+uVE6
+KB7lFxzFUCCaOsga1vh3m4mhLpCLW5oECZ3WGDzbiCY8BKBk/ga7dGDehot0aa9LtDxe1c/Mof1Y
+cb16CfxrbsDwAKw/sWtQMTmjC7kRd+diNt0a4g+AsKH9UPoq9Pqs7g92Nk53ipJj9qqEEZ+u64M8
+68Xh4+W3gu91eea0Isd3sLEFBXurtUbD2nTQVgoP6RXlUA6VuT+qsAR11J3yFozC9RbTiL40Uw4t
++OPFt1PFGC7H6pqqgjrq1uqf8nZ15oRZJtBd6WUhV+6uESEHqWAk4C6jqkigNdFFi1Bmg58nVFRo
+RHdZCduEJIaGd211z2d+0VZ7vv1FG4sVCM9h3RR8jqgyiMNAmEEauZpPqvRUkwoTeMDCG9Rou7wb
+Tfy9nPlQlnQAtDGCGj7TcoBP4p55U1sLgL8/iwGGq+ut0N85i9UTEbo3KInLIqLdinYugtiR043M
+2sqqgo/fwtYbYl1tdfiwV3dTODEbmxQ5GiUj3mGCQAd2fhqJrUOPQy5FWjiZ00+G/GpnTHRObUMs
+94RlrntQmBvrCwiSbZW14PDIAbU7C5oJaa6Ai9up0wXsOfcgS7TblW59bvzDOt7QgmlsrTuQ9cVm
+BzoVCkT4L8B9GOEhuaL9m8hvhcFdcEEnCGj741f7/kHfrrfZX7OlIEyREuFhqY6rqep8PbPuF/gY
+Olzxugtqp64fXDOP9h+v/H5nszLmMyamxjbzqNZf9o/lUzublUgMdjYTktTLCG4rF6+sPunV8vd9
+MiSQbYMigybO21VYOtHdmhOtj6K7NFfqm1OIS0D58asN3/rMvnl/LnDfJnyAHgMI8jXfLucYbugW
+Cju16bjNOlrDPh3H74hrxPHj1/f+TBj4bNhMIgfuwd93fb3/vD6kXE0zJdwNYa3VF2QwaLGQDyc+
+BE9UyQ3t3DMj10+uqGPEhAIeacLWvVBQYddFz5mXsTL+CmcaXW6Xrp3EJs7ucGt0zviMnNohjE5w
+EEI42D9t3cVHJkIYILdE46anXnEX2cpA2u1Q/j+2IiOI8IQXhsFX27zLBDI5GQXvcqntGq5z58I5
+muozq5x6f9iVC8hTTEGBE//2i402PN0sZpUOhoCFtNBdjmmsNbuJHisIPr2wj7fIqc3oqi7sAdIy
+otnmhFlVY0azs24RMbj3Y4kxiD9Fka3s+pyk5kwk2ZoUrSfN1W2Vt2jgGrEdU1K5fU4OjPK4EVHx
+mgDowQ/NoK4s8sppy3UcsdINTx8/4onwxcWACZkgVjLlWXv7TpfQWXQTkqiHpwCKTmGHh3am36oX
+6b7OQ4cuhG4cDB3C45nHPfE1MYEFbcaTieBibBKVQUuq2Kk56W3YOy8awuuUu1gMR4aV9fsIffTu
+40c9cRrWhIzRLLrgStqGlnZ0Ozh2OVgW9NDAxNly3yv6uYnkJ76ireHoZglcirB+3jwWdjVRWq5n
+LtQyMcF6z9r0oLetUPeiW2sJ0SKJikWfumee7+TKXARI2BgWiF/6208ZwvufuoIZCVU2qM+orTL6
+O1mY3M5MxvhJaIfrOqLkDM8E0hOnhOVUkgu8rqG3rb/rn0DaoHi3EZjyXjM5XbalOuwwglXuXRoo
+ZwLaiUfE/U9nfgknZZ0U/napOle1ZTQLHhHpX6A0MMsms0F3m4Af3UtYys+ZcM/ZFZ94QHe1hmd8
+kEkDRd18UvTSWDAPnJGEbxeoDWwklC3hIVIRKXx6j7pQPlyGbDD1Bg/Mtw+YojmnncQDhvgBBW4H
+jWmszXN2b+9PwjpwQWXGqonhm7V1BFQHhyEeNWNgFPwDbrMxg84Xp8OZTOzEKqs1Hv8QPHHQ30TP
+HrlKUZouWLQNRVSK0oSsE1tndv2JVRhniLU8FoqaivnZ2zc2qfEwkb3DsYAzUtw2eOtUQdUoXXxm
+m59aiIQSM3uVO46d8HYhACUjKmmfesuIMWlSaI0PX/GM4fD7oPh3oih2WUyHJ/vZPI1GvjJOJT1O
+Hje7JHYm8y5poX/ICdH/DoG1nF8+u+Xw4mVWIwx1c52ssgkbCaxu2gckzLouqdhiR+7lPE3Bx6uc
+eDDbISwaKnebRZn39u2N2LdGTVZTibs1iGEe21fMkmn3jt3Hvpyic7N5Tq9HBcAcU9K7rSn+oKm9
+bdPWgYGgtMB/TBMFXA0jhDapmlb3/dTovz5+xBMbhEdkihmXDJb/7ypv7PERrfAi57hMEO5WgAtV
+t3x+v2PJQ1/M1Neo6258ht3WQuKO5sDrczW8cyb0Tm2azWeGV75PC+hEmdwkNlclivjN2Q2tGLep
+1T1TZ7IdRG1MWRDNjF9h7LsHd3SQ4GbRBILXdsXh49d44suRbWEXaDKqUNBKebtThkRN6pp5JV5l
+GdEzCiDzGWWe0e7zCtcOz8pgFO0/XvL9tcJcCl7lCuRweW7v7HjUSndkiLYX6uVyMCFl/cgVAMkr
+RaM6vwsR8AqvqmPauR8vfGLLOLh6OhxAh/O3tZpl7CX5K3aD3hB3yk1qGoXXSjl+Oo3l8VxsLzX0
+Vjh+b+6vSk5I+R14X27ulAdkjSEeb0ppcxTyvDDPbNBTW4ermWbg+kbhzL39fr3ORCxoqpSlzpQc
+sPaCWpcnCqb0oZ1eY0c4X5v07A46ufXj51+nzWtk2IjD9jHXrfVPJmIntK4jy4T8D5fpTmD5tKuw
+VDxTop7aoLZGSUwKaVKpblJmLJ+kjuE8xGQrs70WvsIPfcLUE/ptfUQm0h4/fqr36QdxmUoan1uq
+HkL126dacFOpUAii7iliE2qkEQFJWqCzUL0wyjqzJU8+HZX+moHwX2dT7+NOBTUUlwZcXEJ0BEwH
+BjRpK3fKj1lhqu3DgvrnXDfsxKLroBRqH94o9/jmdlg0qMpyQWszM7UNnAoZ1wwXvsLbJiqK4NPv
+E2oCdqXUqlwN+ibAFGOG0hZrHWRRHQIjP1mmOn9G/2XXEyrxedTOVXZ/Z6O87QmvY1OorhzeKynE
+5hNOhRtHFvCE53L2il0ydOr1OOEi5iZdeQwd4COR1O0hhh3JHEAFiMqLZhtQsMAn78z+PRF0XMxP
+iOu6RYDf5pjxCDuTCVEV/Jom2jFMFxpfhFv8x2/59DP/s8y6rf85jKnV5YMaMgEnXJbJ8pp+Ndhi
+XKRh+oXudrfsZuVCHcHYnBzXWpkDR2Ne7jCZJ1XPzKo6tb/44v8brkB42BzZCkO50DZ45Aj+uG/A
+WP2jN3UGLUyNLoeWOu3jhz/1immAc6Fwfa6D3d4+u2EtzKfAmtGzTb3Gew0VkT0X45mnOhEYSNuA
+QzDI1/mW61P/84ZhBxv51FMsYKNXv4RpBJZYa9Erw7fP5QMnH4jCa3Uph9+rbl4gDsmQBARZR8Mg
+8SBsYAUC1sRnso6TqyAsIfDQ/yCIv30gtE2h1BidyqjgKHH2WBUZfUC5hQr64+9z6s0xwof7leY7
+DYhNLt+Q4TsIW1lI6dS9Ajs9sKvBvpeohr/+f5bC/Nlds2vmgL99pqKd2s5V+Ehy6uStE3YxKKcD
+lRdG0Zh++38sxsQr2nDk2WJbimNpE+MQTdY7AMLs+75j+CUs8WDo8mL/8VKnvhV5Grcglsxc85vn
+gsdkWG1B+0bXzeIeOwvnxnIG50ysWv8v28CJUbK9toi4IbZ+zGU+WHOysO/KFu6k18MXvSA4jk8x
+Xaq97FH8fPxYp3YGDT9oijCWwLE215/eIRwvLOAzPLVKP12QyDUpg8JI7uMzH+v9s9EyMdgUXHy0
+M7bPNhrCzVt41auiujnEYX1fOc0ldDnrqDbJcObBTqzm4L3MCAXmvqyUs7f7cOx1hYnjQOzmqFiX
+UeEqj4x3Qr4j+uUOm77wTNL5fn/QXRcMzyGP0FC7bs5yolqQ9pUKYTs4+4sUy0zfTRsfPv5cJ1dh
+0iHHmH4GuOfbp1KUwZoWHJpgteHCagxRcwON89xcpRPvbs2FAFuoEGg8r3/+T6ClZY9CyoFbXw7z
+cCdEuNImUP5eGsVofdfqMP/v04/FFqTTpOFYD8qzeSzdypskiqkLcBkjYy+030lpf3JONd0FigKD
+sERA5/LY5pWaguFEuQzUeJWOk26LfwwdZqP0oWMgUlP5ZmdO8/uvRVw3GcFJYUmKuQUF60Giwhlc
+OH153V/ZSxpeq/2oj5+O7sgqVJvp5TbRXXM20d0p4PxAAslwx+iqXZEVf5aVbtZY6blRWO8eyNIF
+ZbitUidrTDDfHCrcfhulVxEjinpOXopKkbusiz/do2cV6lPSiXVgAg/0dvtBBoXxbWM53GSjXntZ
+6WCHM85jpl8PvYS6l7YuRDq08hx+3C7rs1jZqedcwwZlOREE1PHtL8gpd1bRLwymJocvkzR6fGUk
+ZvHZ+5/rZJ2zxcXMzUxofLuMikV8b6y9PKRhTuDq458SovHx47O15tpvrhTanuvIkBUPd9d/3y7S
+JGXbdK31o0cnLCvl3kqOhWrvK6F5TL0hwUH4xcyGM3vyXYthXRXBEb1dYzUN2nxD+IQ49k7Wj6m/
+dGPnqhh2WhX6uZUGy/L88QNul6KBrIJAMCiHtisq6E3wSPCWWKCHogy2pugGx5PQ78di+KLgub5z
+ihBCGbdp8PGi2x3yd1FwfnBNjRRj299LcR4yx2qKPTw8sns0AvlucWbnzCrb2/l/qzjkvLq+Dtfb
+nDeA6AhLYB4tRuo0QixR1n4sTko+2vJzpIkTi60DQ9CigXozJmMT9ZuqYlSZuTIS45C1Ruk8cKFx
+Y05d+MmNz3O9WWqz8U0rDO2lZin0iSNChiI8YLDy2ZRtXYX2D/MxaK4RSTZxse9FDPseh0aCjHkY
+QY4B3BZ7/9mdAEKLEoI4RcuJJsnb84XqYElNC4FimEhJFdvGuCzmn428wD9vVtmcYgoSfAEmikdM
+QUMP76wXNRMvHz/J+w1AOwJ7VgdrF5pK9uarTLnSadGCnRqDi6zfYsLTIUeku3pL2OfGJf3duv+G
+JRIMFqNFAGQCyLSdUjfik2DMA1AWSDpOMuSMCoJtu71qlKK+gYBb7Tur748YwGr+lKTaBU65+ZnY
++O4UUyMz90TA4HJWHefmiYsal/Uitp/dBBVAjdWiP1nZuWzq5CKwPHinwDaWul0E6xeshKOXbK4L
+d6fXunlZMq/OPXzq662sGINCCByFhZiBsokVfZ5PbmxNo8dAvBj2snS+4Z2CjNRI4zM13uaJ/rcU
+WS7jWsGxGWn4dsvroZ1kJcmtZxUIwFseMOhzRXwuSPxdBfzn78MwBnPLRliqCiupMkZtEzOKo0EV
+faWryznUbkvh+98yQAzrAD7KVXPz3vDOGQDRFKj0g9kc06mer3CS62/MPjIPMQUz6q7JRIyJhmvM
+GKSCWLqPLky8W3w+6bmDvjmEf3+OBR6wHkES4nf9SKfUsNHDLqKap9xrjSz/MmFpsE/Qt50Zyv2X
+G/bPGfy7FlQ5jY0DgE9u/PY7GkaB/fPMd4zT5rFH4IN9ln5YwuyIbfHRrJoffTL+6AUjdIzwa2n2
+zxMw9EzWV3fZBd705/oUa6zc/CAucocL3dWg0m0ZQ8gsUOY62OSronH1PwUesNll2QJ13uGfWWb7
+LFkK7QFfuOTXkuBIfYaxdOLlr6NsVehKkCYw4Hv7QsJm0XosQAcPehg+vlZVBXCIZVDHaR58fFxP
+nKE3S60/5Z8aqxazFs/rtos7S7nI2BBXJKP9508qq7icUdhs6134dpUGaWtY5pyhfoniveZOyl5q
++E39P56FskqAA4JEWJt95DJpIcd+jX1UpekPlNHtjTIo1sPHq5zaHNA9OBL0RwBwN1EH1kUkhwJl
+dZaI9MDY1thGFSKiXWRE3ZUqcXbQeikv9SEdvn1+ae4omGUQPt4fFOTVpRgL5IU6zbnrSZjjK7MR
+lAvk3uZdgbMc9mmWdUfsP8cPfL9NIM9Tb0FZIpkmJLz9gMoIvqM0KR4ejlFfp1lZHWO3PQe5vH+1
+DjAgn051VAq8bb8+VuvBUmUxe0jzHlTLfB0M5zFcrMsBFxd8W7ujbTSf47YQfOhIajgG0GbVoOlu
+rkU0SCNldzmjPsWw4NmVmIMfpdATy8dmVsb4NrYRIAw2nenTx59z3Slvw4wjuLcgNQC/wKvZLA2D
+BkFZxtKOBSlbn8J0V8m43jHvCMFD15zrPJx4vaxnAIXAS4bAutm5s1hCI9LwxMEIOfOnsrKObtEr
+wSQzeUTw+YjhnzziSXxuDuD7eLbignCVoJeye7Yd85iZgwik8VnE2EjxM7VSgsxo3b3EZ+tMPDu5
+FHU7YlA8Dbm1325U7IRGu1Dwyilz8Hk/xuMgu03kgE9atxp+fPwF3x0LRu9BqrAMdu2K2W8ubWVC
+Qu2YCDHMCQsPpcHmSmbMT/t4lXf7ZCWsswQBFLIixeXbZ3JDeGcLVlT45RVOu5vHOC2D3IrN30jE
+HCzRZHpu3PC717hZcvMa9RwdoMNgAx/FpwyEkf1JbdEFRZ0PZx7u3Sv8y8aH6kCCBX5tba6G/2Pv
+zJbrxs4s/SoZeQ8V5qGj7IgGcA7nSZwk3iBIicI8b2ADeJ2+7qeoF+sPTNkmDzNJKzOrwh3h8I2V
+EokDnI09/P9a60uWOVFJRiJSdG6HAyJLygCLUPXOsHh9FUobdOPpdbKqEuH+8hESLjpmTotZ2ct7
+a9Mm40Jwk728s/ddf8vzF5rtCy8WrxaDXHcJJH15FQxaGugnFC9DFKkfJ2+EnRQPB7PhjD4counj
+WL/XIXp1SZ4YZ5dVvb2Kt3ePfYXmGJPR46dI+04LJ2LMrcCrhXKuEbB05rlija2bxebtEbl+/S9u
+lLMZO7VVfshF0Vy+vNFiksOo5vCgxDb1h0Bu6j3jRA+Tdy6z28xkznh5nZ1lhw3jYLcF12nCu5sq
+BMHhfz08v3/7Zp6OJG/djfHybia7TzAAchV9D2GBD9Jjo52S9hKCQQmsDd03/6jzD0nR9+fbt6+9
+e/58dYfrwH22/+IEXZjdStZS9s1ABmjh/S/OiXP4o0vr7pNcX/hn15mKiliIiuuYF9Fei7v+Bl3z
+YfTOF7a7wuxeZWeFwZWfFcp6N8sWREhAfmBQBc077/Kro9LuVdZ34tm9GGmnmdn6fZ20m4c8uHq0
+9u5vLt8DaD4xft8aFjvTLnrmYtZSLtNukJ8GxBD4N2Runi2Bc02M58E7I2Edy29dbmfK9QBXMn1w
+ORk8kP3qf6n8w2/B5c07l/mVCeP5q7t7Pi/7qndIBF3viiCsgHpRADoocEM7vN/73IfXRAa994W9
+M13s+qCEazResl5zDDnb8YKlm9vF/3J9mvjnfXjPscAnc/OdheW9729XY2+Q1aEX6/c3Bw/LVt0D
+jLXpt8lpehD5xd7gv/Ng17X+je9P35lFchMrJS7D9SaToOR/pk/wZ0BG2zuPc31V37rQzpRhKhCJ
+EpqXvlaR8D1GOCLqbjgcc+e9e3pvrOxMGq6T9W61vmiu9WmI9lMikxsd5lmVk0jyXs/5qdT21n3t
+TB6Zq+gWuWO/PMDiDFxD6GxBwQXXaZiG3/DeMxGr/rf37vJp+/nWhXfmExmXIAVaLmxc6of9TX3a
+HhoP0TkVR9K3m/v5qjpMz4xz6+qdEfPe492ZYGIxpXa9jhiDMUMAA+Nz3GeXF0S+EzSbahOHbuAG
+70m3X9VbduZPfWemmfUqL/r1xaAHuU33tfCqDBb/MfIbHm+91f131/FfmwDoCSLmX01z+Gxezth9
+7paVug5ZWMQbjffDCD12DmbgHZUBJL+L/pxg671uzzz2Dt55yr82rz6/9s5TJlZmLuiRsFcJ5ca+
+KbbJVm7nMN/2B/r+e2WzX/tKaSnQt0BXR19850CQkVedzV3T+x0h8KqGCZeUKnN+HKouzJaLt29t
+dyJg20/pk3qHYSD2R7fw8qnaItWjpDCXQDGEsSUmiXBlrUtBrc3LO3POOqc8f0W4FApPev1YkVyH
+eKyXlypc3Z70EYBWhFn9qPaqCl2wUbwzh+4+vfUqJk0sTgOraXa3tGICqwYLSeqRwJx7Rvakc9iN
+RR+os16eZU1ZXuNo0s5/+ClSxOFYxaadPqi9jp9nu4mavISub0A2wp1sNsSzMqeaorwgtb54byzu
+nuS4Qc5w1G4Q5Fu4sHbeA6A83eI5yhw41Vh5AREY/TUZcEQpdVZt5FeFNgpyX0uH+FqK273iE5FY
+nhfZHN1YohI1OQLjOB60pa1fIChpQQ11aeP6jQo+6e3n8mrzTduV9pitUW1CGkb76uWDMWFpVMJx
+YFlq4wh6RCnimdmQ6NoknHpwr6RBW+OUbQGdjvcdzccvce/FbqjRIFy2WWPY7xndd/eX60cyGB90
+uEh8BWf08iMpZDWlwOKnANJCTt6wofswKcrP1P7JJJDN6B7Ojc6ym47TO1vb1y+bwZeGQo2SMEV6
+Y2d1ItBVkTMukaAT7l2LfuNakEF0RvDme0LRX7nS6qix6cRTVUDO8/Im434l33n6QqpeZqOmwPMU
+1nNGaCitqse3v+TX7zVVTMpepAfg2VB3u/Kxo05lTaJV4JCIsxHdBOepjd/poLw65PC1Ya40UGXS
+Q2YJWO/42SsW058wsmUYg0hJIn8CLOpnZWz4DKjyMB2WeuMUUbHR1cw8oaFfPFrlrL0zg71+9fgM
+SG9W1xJKs91i27yMMq5b3i6XSGd7E9eRcmnmKrJATxCJc0CKMYkuP/x013kMow9qH41i/cv7Lq2k
+NOoiwm/f1wThzGa+LUvH2P/xq6BvXvsFyA4wzL68SixH2lNzNpL2AtaTQCTChmFq//DzM1WDG9Eo
+rNGufPqOn32H+WzkjkAbEqSyqU4Ks9fCVCGERhIiGpbDFG1/9K5W2QaiSpogjBxzZ8zos9oXIGmJ
+iV/S+DCrleUgAs3yziHh9YTi6hbWTW6Krtsr3SHmX7p6s9sHYGKrUFWJwSnIat9XXUtBtGFJAmKn
+fjyIlP67Kus/vkz/K36sz39ZPfu//id//lKT+bQqx3b++NeT9EvHd/9N/Of6Y3//Zy9/6K9n42Mn
+hu7xp5P7pv9pO1Rf70VaV7s/8+JXcKXvnyS8F/cv/rCpRCrmi+Gxmz8+9kMhni7HZ17/5T/7lz89
+Pv2Wq7l5/MvP919Lnk7aiy79In7+/lcHX//yMwUxnvh/PL/A9789vS/5wf9d3Mf1ff/6Rx7ve/GX
+nxXD+rDWqlcpAPZ21IwUmuTjL3/lftAN9ghcAQuijcz/55+quhMJP+Z+oPvDdEZ1Cn81dT/WWd6w
+p7/T1A8mEp1Vv01WDPOR+/PfPt6L7+wf3+FP1VCe1yn4Mm7oqcT7bGfEysicss4r+Ect5G8773gX
+K4Tzx9A/HWlZyTm7tVluSDQd7oGcWsypozvpp0Q55ZqPZZbuLbANHfbqtNhkZM9V7xKP0qWEPTso
+zFRgYrp4nPO+uLQr+n2Xyeimd9S1VWWr4Pi/hJowfYzJTi5IXcuIXiqbJj8ivxFrjFHUxIiDdTCd
+TdfXRbanEm1HFqsd15gahPlxmAeH4D0ySBnk7dint16pNc62SlQQhoTqUz/UTUU1QhMUfUpEsQPB
+1YCXKUD33swj69Amtgktv8JEUX50sojUZalk8ZEYSdvwFa0YLyhjiyKgdezoB4TtdNWplQM/8dlu
+ON/apJ0gtGpeeYxVotdgEOvyc0OQUr6vNnNEPjqo5tnXux6xUYVs42RcgAErWpfEhOLPbbXROxjI
+WzK+vMsERdyaWI11HkllCguLLJ52CZrBNtOwasb8dmp6t9hfBlPqWxlJTq9NmRe+A5ybYFUaWQj6
+Rn0OTIgnn8lRE9o2hYdAGTDWVGIGh8qowqQh0DDMXC8/HUkAvGPdMsaQdCFTwfpdJ8eDsnJRyOWb
+7KAluerSEvDSN5Ul0GfVYhw54uhN+21wiXRjB2ii85Al5I4toWZxfw1XmIVJ2mp20nVmlvn4OIYh
+hKwAkJQwk+KBQPfic63HzWWM2Oi+hIngwoNturOW7gGay3r9BIlWN8Z+5DXeaUt3l/4Ov8HcgKaf
+vJOB2hkYLARW3wxaFd8Sb1IV32277KIa+8HatqPSdwEZuHl+IjW1t7ZkYfJbh6LPB5KoiW6HogVo
+3BdEeR6W4FLKTV1ZDoiNylUusfSlbJIsKT+5nlzmA1FDtQ9LN2Z5ZSeg5+BySqDLpU2sAsATt1oO
+J7mM7X5BHXYh6cFUbgtHG7qgR+PZBilyTwLdZJdeLE4nN0tMYrpfAWX86mSjzW4Papx+pHfapIIu
+Q4LvM51YVwLtJkll0OTQKRNPA8OurUmrs51s2Ki8DYSUJ5ZR7HNmFUDPAAxT31DqdgiKQQFIL/s1
+l2+yht7bT7WutPbsNnapm7ZWfivo2QEBTV0SngDKktf2bCL8PtM8n1l2doHMK6sw6R8qqJ395n+v
+CmpdJp8t7n9IBfXvBfHZgsj3uYZz/faK+DGtf9qjGfn18aev9U+XQ/F8bfz+098XR9P7QEMLBQKS
+B9JAGC9/Xxwt5wOnB2/d6NJWo0zwbHHUnQ+oKvk5zp803HBN/2NxNIwPiDNYF1WsEYg12CX/wOLI
+pRg3zxdHlmUURJ7D3p+Fj1Dgl+OKvyRpDXkxWc/IEkBtnxmDhDeEU9SgOHsOIpOEcBL/zR4bGtm1
+S+H5s9v1ZOKqbqnSShUQ6bpL3QOI4RNfj6UNuFrc3RNfqHTnS9Srec/+ky5jsllKY07u05w6hnkg
+AbcoN26vwhIOrNGS6YkKoscq9kmdLSSLUdGNGemIytgrXysQo5EbWDrRDCDiHauK7mRVLRDQwIJ1
+R6qMiMczSe4FiVypA+XdLgblYVbw608sCoinJoqTLnSqGKAUORISIEcbjWHfefzG1BPdsZsNACpU
+MArnRWnIb0uJgjwwhJveEurHpLbgdtDIqas9N+Cwph52qiEiSPJOfDZj+838HPzTF5XGc7stsyTH
+/lqk3mVKL/8mqrvuJo1EfQl7swYJRrbkAZUafiomavgys7X2zKELesJT55CcqeBVB63LI2L5uuou
+y7v6OiIBXQlK6JsPxsJJGJpsl3wTQnQk45NXu4KG1nYjFliAKrCfSOcFCz2tZKX0PjUSk5xMR42+
+tkbVXSyq0dibwp2VYQNSrMS/MaXNuRuvCJl2kvpIUp4ZHeeu9HTsyvV8A0I3J1TSI5wgUOxscNbc
+5zw5UlJcYty+bgAU9UZCCx1AnASE6noIvl27zMjtd7fWpOq3jZZ71/VUJ8HUFfYK0hntY3VG4OEn
+0zQczfYsCKeNSXoMnE50lzam0IpwTCU7gyMbH6t9x86DTRysgba7nb0hPY7ANANStwtCxE1xkmZI
+QtjLjbj1k4L9jq8Igqf9prDcMtCweB9jG2B/AaWKGqCwy7gIgEQoX+KudD/WdQRxthsS9bxK5+Wi
+8hBZb1o5iXFfgXH1FbOadl2qQw3TIoXh4vcOYy9gPwvAChizdUIKJvgvvdagV4+tvIEU3n9W2twi
+NXuytE8oyNgStfwGCdJvwjSNFqU5GEajQG8Pf/PSls585pjlfNwjb+3Yu+XlZSo8HdykKFPHN2sn
+a3211NhhlVSMWxAS+fJIAAc2jzhXlbvBEeMtQZXY3J1+yK8qgk8uayLU2RDndnQCrKq2fVUqOq2Q
+pCqJTIZJwFa4Kvut1jltR0gk9Cuf9bX4aANMetB7Ycxh1mvOGd7H5XOkxgVqcOCGV0DjjAuJBVJj
+41Xop1bmqJRFiKCHIzPr8ItTXY8f3CXrvyB1Mc/BgbOTrBWFaGTRqjVSxlYSPKg3drSvK/p8XYJX
+uuq1scQri6vzU5uRdYmUo8tvs8iciqCKpvm+B9rSbshfN7+M7oDTD+oev9glevyQs78Ed6QZPGeP
+C34ucYN+8txILhvhLNrpsFjkZLUoSYNUcfGCGS5EFDjgLamIMXdzqJhTxxhB/UAJrddxfidQAoNu
+sqFoJoRfQxBXU/lgywTIatS3k+PXRMVWIZt/NiCqA5uS5+jegTTyPoG5EkxcSi6mjYib6caOpX6F
+/T/qQ2XKmtOyqCp42W2VMmyHrJ02HaqcIgCfzPvb8E8+YrMtp7DB2nheZl0xhF7R2UrYld0q/Dbn
+DJh0rzjfpqKrpz1O2B6UYa2RY5CYIgW39+8g6vBfMYjaqJDLZo1omJme0qgNgqT2K7W/ekqkRk/c
++mMFgPK3YqnbLK4AX47C0P/8WOoF4EQTjHNh+6+yqRvgQVbAck5O529kU7PYx0S8TixnL7Kpm5TD
+md82bna39ATjnv3PxVTDFDGT0Bl6U179K2VVdxaLXWOtFYf/D7OqFU6m1/CDiOF5CqwmyQIqV2XM
+EvidUXSw3JPx4v3Y6rlFdRnmtpLc/pJd3faDE1/IUbRfqTbJS73qxwaK079wivVkS0LqSbGxSCTf
+jbGOJ6MbQh0e/LcfirFuqr46T+fKPY/UPiPv/Z8MtHaKVl02C1RHylW4Z7ywWmr3qCwJE0+3co6n
+W89YonI76QYu8gRF2/dwawn0td/EvRoVwLLjX0u3zhenhvcB+/Hkl3TrTrf7A5lokuCnWhqflhwU
+bfAi7drJzL15sRI9KKlB9FuLrHnYL20uz+fZNOU2G5dlCFiF/4QMbDvN15KMVosqu5TPk7DBw8XX
+g8MVXyRhp8BvM3a71i8ZFf8+Sz87S2s04zi7/vZZetM3//V/u1RwjkbdWz8/SX//2e8naZ2C8RpZ
+9qQ2JJJ2dQ58LzOb2gciHZ/awxyYaTn+o8qsOR/IsyQvEF3uWk1eS79/qzLr2gd68tjJ7NX6R9v8
+hw7SCDpfHqTJc3FRbdgu+YEmvcG12P28QFN0RjlGniwD2A2uQ3z9bN+nyiD6PdJtZbdNPTaC8CbM
+XA+wQMCN1YzW8iWt5SZAerWSBex4yPZmejhAMV07Nil3zsA+IKqd1cIxcbtghDvL2Ms7WzzJ4rFp
+83J1GCXiSCwQ1Xw+wCwImy10ao3keMx7ZqF05Sc3q5p7kaRsVglwMiT0mqQ+mCPCGzYzfI+LHoBB
+HAxxHz9UBumEftX0aRwY3ahQy1WX/hYQgjsd4caU14TDwCxzFTvu/WgiM3s79Ol8rzhE6GwI0+M8
+URaePpOyOSkUnGuomftWYY2wF8ih0vap3BL8scgu011/Ks0kPxlk1sV7LWno+qUOZDPOQd2SBX61
+qvujIBGdc1qhivf2HCvyxN1UAnxFm5OVW4VGOGx1osk1DYAJUUFdKJXJm/cyVZ270JV58pkTqnlZ
+Sn6jn86KkQVyNopyI7SpO1rK3LpcKs/NAg1YMbn0GT4OKo0W+UOpMJxPUaHQuYtw+e4RZlVfqu5S
+fLKxJiz8nsL7bOtp8bDMTjUT4k/LcmPN3TwSfc1DpbPQmOH6BRJonKSSfKxsjNaY3sE8N/se7I6I
+lkdiSe17z871+y6JisXHu5Q0W1H3s8qZeHxCvHpQMGA3jXeI2mMjtFOzTwJX7V1xlTZWfCBbrc7O
+QK3rX7GmR04oTWPoNqnQGy9shS2RHhtdgvKT2AZxWoyWLsielKa7nZJ+/JzoDcdGfYBPt6Je0wtQ
+wiRc9zN5mP6sCOVGLHMKLZaaPegZGbunDufUyW87Gu/+XDnVkV6MThnYbQQFvGqFBL0kHVoZpaHd
+RVkqE2o0gocQd0WXMTYYHEBsmpp+gNBLE0NAymGt6efswsiyjq/BrWEo9SrE0tClw0Vec+NxTmys
+3Mu2fZWq6rZIBKVhLxf8F6OtYtAcQ9cEcVwpEeh5LVuJqzFjEUR1Bj3drgfbn9pB9fwCpiJ23Ck3
+RUitBYodlE3rs21WarYHzy8H45GQJ0T1YUya+KC2x8XzjVYMVMIXKdPNXMvxmxyGGsrJ0mm3nHn5
+LXS2rG9Nj+B9k1lYq4DsjMV9gyw9IoWmYnzh7BLnNVF3FLWHRD9RkIg4vkzipfMp5Cw1oMDFs32e
+pHsaeRS1NnFh1iRgYUj7Gs9DnYaWWmmXTmvkl9TRmlB0c/Igem/Rjs3ac25a8D42HQ9Lzjxq0T8M
+bdPdZ5HdguYbXfvW670GBDzcRcbanKPRACmsGaFlV+lD26sF9QlAmEg009rxQo/XACv7EmXXWtuI
+w8WtmcSeLQG/Ulff1Rit4rfnCq11pn1W6v5zFVqkD71wbuxM23/ARvFKFL17qR1p0a5JxHNmb5MU
+Rrlp4RRW8Oywi3gtCgTh5NUBhSdYJrHTgFroHfcmo6G6eftB79R+WfS49zXD8ruxY+dB/05jx698
+nS/8D7vCtD/H//COVvWVH+7PUTT/yr0+k26TE/hy6P4xOS4bm+el+x1jwi+l/WfvyR9QGWvv3df6
+UZ5d6k+RpK9KsWediVe3t/Nm/n619jsy9Fdho3/URrAOgrdubKfl8kdV77sb03U6/YcTCF3Vy+/u
+d7oW1g/92zeFsOPlVf57fCXqjqvpd/pK3ruXnXnxdzpxXmnuXn4xrwAiv9tY9CRpfuu7WdeBZ2/v
+n+qeenuSwrP/8tp/gpL97bmKdKiXV/zTNPvr2HvrKa+f69lTdn6XE+49J8Rudvyf5oRYZ4m37m5n
+FvnTrB/vXHdX1Pi7fYy/dp3nHoSd+/uf9D/saqb/Kf/Dv+tOz+pORD+sDrbfrjtd/tf/qX86vx+K
+FyWn7z/2N/GG+eGJQEa8m4Go/XnJyTI+kA+MQnkNEUN8v8Yg/E3ZqHkfUJCQJ7emLpJeucrQ/15z
+sqg5oY5f85+Ic15zuH9AvIGB+OVLaSIHJ42epGKyxdbgtp1BO5pGbg+pl4QVJgQ36GzIlhs56fZj
+Pg/utZBGfgfmrZeBRYHpXOsXNHWxofVT4LiZ/OJm02AeeWOcY4NW8vikcvrkLm/ApPqj7kUnbgz1
+Y6/Tm76GIm2O7SWciYGSTTTLTwjw5IWZLHK8yAyt8A4HsnmK8xg+s3rcNl42hHmZUysmTtO4I1An
+P0NuYjZbjepBc9PqRZI7ATRVbXiQRaGi4BDDkVIOTeYvVWzfZt4wnY6lZWxVJdLmkHuNAEAosyAv
+eTDm0nenerhLOz1RA6F742c1U9MqKIAxu34s2+l81KVtU2oQ2Ve68EV36HXCa06loK0QYq6Qd1nV
+kl6fz3FnHpdeixJtiadR+IPrzFR4Jiko/iYR3VwRjdivwKy0VK5gxgVxgvkuzERpPMZNNx+7dYZg
+UENwSeu4W+D24iZXxYb6updBis6o4ehTAo2WeL28CZQ46hcCV/ThmKo0wdegk4BRt5Om+JGtewRx
+qyueVkUO86XKveFS9Fn6TQyDPBSpnd3msExkoDW2UKDhquYpycfdCc6I/qK3YjSNA5k+R2Jo0z5c
+onTB7+iK3AvAtcoVQaxpnyM9s0/jyugQW2q690iQgsh8maa267sOyZDh3KBSCCav9K6kMcfeHlHR
+3vncF03sl33hJn6qewDa01KtVjLTojRbEu60L2qTOR8ZKPUA19aJT7u+4jE2+bx0YIGhv/vwXrXi
+hFGOaL3MR1CleHMArcYGUfIbN23KuxzOYOQLIJfbDplxGy6xV31BelhHe16e1F94y8qH0RPAzxtF
+F6PfmnNxk7ZRjdSw1kGCaxr08lHAvMzFUpw0iMlXbWMa3URlk8EoryYq/BNl0vMF7JIdwq3rkZa3
+SbGdXNnHPhXdFIJomnGD9NyJhyMl1/vmuHK6T9Ed4w2n0vipW1LUMgMwvSA1BSl1mSFx8Bot3z6i
+ncXFCqM15b6lLAhjDNimERjd3MJrEcHfC8xY7a7QFgCSbSnIBLGTVlj+HAQzfiQsgzC/rClM+J5u
+QWL3YpKRUFMmJrdQmdyLGVRxEcRKpBxLW0OKAzwtv0oHJRuwnypKuYljq3d9qkWZGubxMn2EDexe
+KUYyfCNRmkrDNOTWca4bdGuqLkWyUQvpdP7c1vaXUVtlP20snTu3q3q89pUxUYtTPcSuTp3daEqV
+I5GYVKGRO6emUZgNS3VbqWmfbEutEFmoMnQTaJaZYzIrKL23QaMxH8fCqyRSlkVej4qZUXOdipQw
+JXXRxj30LHLxF4R2eYBcBiJurGaCN8Q1lwmXq1p4QQP/9ZBHq4a1KeMThE/12UAmxsdI23OtU7Me
+rCms+8j4KGyH8udi6wxFLbEAyODxybaVJDp5zAeS2F1MGguzTGSaVIet/s6B+e4cOlBlL2C5pl9t
+WYBHT7KUwixMiYqfjmMEM3oVa98aAEzUEU2hbKAs2n1gksLY+WUr2vMxta3aF0SlJT6qv+ZA6Wpp
++Wo+5f02HovpqpdxVoI1jpxPiElU56hvPIjLnRF7n6vFrk0E5bCMN3TRKUvmvRyvYiZC2OxeAokz
+jmZodmYCusxXM6DtKIDa4qPMexIUGcjWuFVcI7loXWM+lGRokbhPDne1acxF6mFR2uUxyralP4gK
+9rO+zERB06GJvdNMqdo5mEtNu0og63Z+X1R5sqk1YVxSLY4bvvLZ+ZosHhVDvc7mj7Fnl4+TTamW
+B90pe2uRe+OSEXmYS8WyYQQB8SZB0C28zWSVkLHTBilVFVtUOKUyDnIzV7b5IJNRcYJSV/IO5NtU
+5+vSZK2qPxU0qZn31aGhOCl06rRgXAPPTLujzqgQZBldV9tBjJjZCZ1p8fCPwBPOfAwrZh1oi4gP
+7Ho150lCVB4NZ4jto7jP6iKMil5DP93HiY4RCWnRMRoiuK054eKfCytfps04zQ6dm6ajJ0DFGaZY
+jTztbplStfKlirKamBQLmWTczvIyLekW7FWyUq9aQC4uQYbq7O0XKADrQI4QFzZO2hQomLSkKMA9
+DNnoV1lStQFS/fSot7JlQiblVcRYofP2AtOI9M+qWyvtvmV24KOMqjXjA9UpZyOQdiSv3HjFdZtx
+D9IB0qxt+qMxohzL3ZHnj9IS2WU8lNPDki9Am2J3YJio5WBeA4Mdyr24HqaHuK/scr9PrWnZVwfB
+ZGW6GaOsjseouTKjmcR7g5lx8I0RcZ1rxIMd2lPr3Uknn+rtYHq5DF3didS9Gkk3xW9SeY/RHtLf
+slgM802lRk2/nci4m1iaFvQOyP6AIbEuzOl+TfeG6Qpx4BSyd2mawO35iK5VxV/jwZP1Vpoz46FW
+Zj4+Lo453cv11aTQD/2s8a10vA657Pjotd7w/yPXW6j+U58nQtpLaNFohTXNx7mTq0U4Dkp/SSoZ
+jmvgbW2QYTubt7Vu5HGwWgfSPVNp5GNuOdWpl5btsjH6avqoM1OaQSuySN/zEsPt95esMtsgriuj
+3ZetzNyzeKlG/AOzu/4q9D3At+eEJ5+0havsjxK5GIs9Fs3DNGNTc6BJpSYLQUaqHbatywJCeiLt
+qVZ2qhWMWH76g6FTeJBgy+rAlrEsN9Ggad8iGPUtqt2GHLdsGat4P0tTzQqtWJnHTT/Har1pK7u+
+7ZNJA3ihVAqSSkNVgt5Y2AA4Mp5r7I1pjrdEW8ZblKtRdBALFKhkqcF1JwoYEybpwAK7nIlz4cGF
+Dd7uxRndwQMaOnPMhqYyk1PVkN10FEOvNw9VZR3GRE25y0Xv9WlxUGuG3n2yarsLRqm0VzKxVSjo
+vRyivRy73IGRP32ImlfpoC7UlBeFuF2b0ZE2ejj29B/DeakXb79pVd08MlJFu668Sc8PGYE2OXbD
+MIPdbCJX3wCOtO+Iksy+5oOoylDKMm/3ssGBub4KI40tTSLjsztNYxcaRVaeKpNRrauXWu5VQuEW
+KqUqPuIgjrxNFwnuBseTCiFpEM1t5KY67VeHscjey+2UTc0V6OOqemqHPcznSwVN4+d4kdNDRnQ+
+Q9qcmb87fKRxuGDMtBH9mQzSrmp547IEFjWDX2MgV5PKAI+nhX+vTBYjyakJ/Q2XQbaX+eKWXVBl
+tsLutNLMa56rfJR5YSwbEz7TYS1LR/i2NmWfin5h/4AnRyUYCNqygLXsGrdZqmY2MtiCqSzqU1fz
+07RGrAX4xTxwsZ9qQVwui+4LYtqyIBodNpRj34mPDgcoJtEh8tihGjVdDDeeN4rAzeSqXeuQzD2w
+Q9TjefpWO/nshBFEpzagp6X0a2OueAQchL6c40enbrNWJl+abhQl0GnRppsC+mVYFCO9tjaGme4n
+S99/I39cqQlmL4pbz55oDo4ob09ac8qszbDYy3mcSftmWQQd8RZrek+MtdSu20TV232+cVOnYWmK
+7SwJztsoSjekYZcb1ufInZcocFqayaoYWKRsnu2wSTWRMMk7SnfEbN+UQZT08ZWS0oi/mFqsiBt8
+YxVsXvKgjC16bMv2xzGrHgxXKY6deOzvGM/J56UfFSvIFE+NgxgvDnASOGUDj1IxHSxmaTKFAgg0
+fUc5uEBhtIZPsmjsDNrIXTcaliUWEj9cDEZTTsY/r2b0dVyYaQMJQP5idmvjOG6tZAn0wi3GPfZO
+rcEeKs6zrUhq1dyXSrycdGMyVNsxV8VXB2Oat5FxbpqgzXQcR2qGeiIYM8iYzMrxcKekuvmR49qs
+h6XTLuTumXXu7uX1OiYAglnVxpgGxWIXaUzztu8AHWyGzMyOnNbtI+QNo/ySTZp20hdKotDmWgxO
+JJ3sYozhrJd0zmVnb3Ia2ndduU6GpjSHj51Manfv2XH//JfC1XPvzlPs9rN61np0xhGIfZW0bDIT
+vZ26pDKizE9SfPIL8dK8w1U9274c3fzEKPLsLhmW9pZ8ruKrYUWGERIcbZZBog6I0NusVNiIidLR
+efLMEWGKG+zh7Q+405tbP59DF9QlZnbNXHV2qonGbCKlrL04lFESnwjSZbGZmfM75trdnuTTZQzg
+DUQd4NQEQPiyaDlkZREp7piE3jS75VGX5pkTGtZIw1dt81wNkESXcj1tjw+LmKzrGlUCEu2ira5q
+S8j71GkA87597+tFd74b5guDuFm2z2T77zRIlBUhjJotDe3uSxkN2RI2hM/vCzMFQr2UP/qkn7qT
+xBO7K/YaBsPLR8A045gKSPTAakW8r0KbZiF9N613p6dASANeaTIsoaeQ5U9e78urDEVqj2XNCxWn
+c4zfgdftDFW3t1FAwrIgU4Moq6baGsjNzt9+nLut0Kdr0x1e3UI66QjmTlfSy5C05FlpkE44VZ/K
+NjIW3vEJx57bd2gP4jTX8Ulwlg+MMR3noGniStsg41USxp+pOHtVwXp+2Uh0Ba01L18akdtfFSOK
+OLVGFgccTS7RbW8PmR6+/el3GghPH55XFPoVznabTImXD45kykKnP64HUOQ4XcvFZVFYI44GrDw/
+fCnQZ5TsKN+R1bKba98UatLlkOaY2MdkE7XVEk6GsMLca7t3Xrz1634xxImDofdObXHlDhJj/PKu
+shxv5DRI7qpX66ME9cWeEi2reMmJPwoia/1IDlmQlZNxLA3rPfDhqzdsvbxFVgCMRYaks9NHI77f
+E6JCccmQd/eUBSmnaXes6apiUECp1Yu3n+yr2WwNwMHBj+KObGL7qb/8rDfSoK6J8GpELEe5uZ8X
+1bhp00S881Bf39X/Y+/MliM30iz9Kv0CSMO+3AZiJxnct7yBkclM7HAHHPvT94eQqipFaVSj6Vab
+zdhcVFmZSsxIRgR8Of853/ntq3z6quRgUQnXWFEoNd3jOuOKsFhOt0YS3Pa99e98Kp8tf/weNKks
+TAdmd6g8Z4rTT7+VU+mlTPHprdvJSk9OMTq3chKceL1KM9HPcmmY47vhRnm0T3LD2LHcBuU6r5EM
+EWvx1LFfclHgUlLQtTFWabHuVGeK/bTEelZGKxd7Fk01PKpNazyM46we9NSNvqbAj/9dE8cffUiI
+0jresSXHb3/6TiZSQ9Dhnh1aGPhekzx9gbiV3/3Vb4K98NN1vvK6Sz3Wp32tEFORuJCMw6mwitdA
+FwioYyV/QQb/pSHHtfxe3bfN9+8tUIbPJIbfsBz+76U3WIRAzZ8+gIUP8esc5Bd8w1Vavan/2H1v
+3lL1s7v21x/8ddRhBV9YCtj/Kbw3MF8tu9Ov7lrH+LKckZY2WX3B6Pp8a/456rABPODHDMi40viJ
+6PLTqMP8ErCBYwTgIAN9gUztXxh1GL+siD+tmBzSbC5VoGGYdmAhPQ9Gf3rY+rFCYKpsVkzIOze+
+03PPWWJ7jprEySzMr9RikMDEz2q03KRKXw8t1Zqh2RX7yuuMt3oegkPmp/FWeg2E/rhPVpaGj1WU
+ZEV9Wg831pBF1CLZD/hKCamUojqxfKaXcUYez8JhuG9qnITnshM99sARjGaxNig2zbr4plbRRK1q
+dt1nndwm7XSH8LNTPk7WPvG1tRyb57zRxs3Ux+y3VcPy2/Sk52tHPcopaC5bt4o2iAvpAbiAz/W7
+eaz9RF1oemN/c5xIbcum8kKfl93lGleGSauStw5Qwb2fB/Mm48qxxQj64STVSfp2vNOd1gV77I4d
+b4swQ8AD054HkGznANFBK+RhJPB2k6WxF9LGCQNtNP2dmKbpRIP4dax55VJab+wKgzujTQPL1x4U
+65oc4qL4BFrMm8gwRw73iqM8HsIgu1a2MlGW6Csi+4ik4BEuzedUrNzOvh21ylmz4WEaXfRphwv2
+XaaEsVFutZ0oXlhZpho2SMrkgZrKWqM8bjK79I6J35x6koObVvnTWs3zo+56JAFrroHUVjfAdVV1
+YHnsV3ojY27DmXMnhrbYTrXfMVtAEDUIZm7mfLibW3ynNs5jNMmiOjqROPT2aFNVIWcuQtRfQjqr
+n40ZXJtWg3aCsUsUkqnAvDZqzT50WqPWZhe9N1mnbyRTljtf0544z0OIcMctOL27Uk43yGowAlMt
+RziLoDQk5rPZdkAnC0ZA/tQhNlTPWuHuWH2f7Yg058ysYhXEDLXmvjki5IATc0h4JIreiTEookPt
+VnSFoaMe8iyiarCVTfMQe/a89TsU76B9tniNh0Szm71bOuptVs1NhyV61ShnePBQLS+Nof1a5tNj
+NjpPMlA/8nnOQq3pd1IEJ3fZsm+dUet+xLanmsPYwxZacRNtq1AJR44HNfVjuenA4HgXWTmNXye7
+8VFhg0icbHqUqo2XcZ+47smSXHd+kRUoenbuP7WadI0sdCdUe2ZojS3XYxFoRJ3gCeGgNWBJUP0Q
+zCFu14UjUUeT3CQRuwnaNhrtY5VbVJYikdUen4WRwEScWL+2szPkct2nRo4XOYYqdJVHQXldCRnL
+k9UggTkbvTalb+Jv9fN6a6UpXu1yqEgBg7Uy0o9G2BE5ao5E8SavSvnk2LF7O3b0fq+Tme7DUPc0
+TUNay5jEmMQ2X8vB6+Nj4PvpKW5tz9upNp6PEQ1M2rq0vEVBn9Oy24JJrnnc6qbkcWcuWhP0HVqg
+Mha52EM+2A4DU3OMHkiTBtHanWpi+XZQ6IRuqYQLW0tWcejJGtmLQE1lbXPkV8AXuek5jKcGUxLq
+9Md5kXtV2qNunQ3OdRdhdnamBF3HN7ug3WuQTZy1V4J/25qQlevtHDHlBldqt90GdgYuam7rSbL1
+EezSdYsmF4St1xJsgJUSPev9pKCWnF3bJImcR3QbHM4qmwj34DyfpnVctHXNzX+xgRvePCKnySY5
+iCRBwZ3cVD0D9WRgkp0d5l3jJ7e9B6BrFRglY6W4m8v2UHh5sBC6F7N6qTzANipu5/aK61KqnZqg
+SqlR1Lp4ugnOJnhtjCoCtKVj7klA8wEL0+nzQx5VgUYTYqoHuwIowbgy7XF4MxW2e6Hs6I7xCW+I
+CFIsuWkSAGd0p8W/DxLAcr4hzNo3zIDpcrC16c0eBifauKnVW+u8mFGQKvbWIBQS9W9HkrinhM4j
+Ykzmw5bOPvbZNG4js/PyjRyCbgqt0cFg71tdSnQ8dsb7zh3b64a9fkvIqd8Xznyha0l2kbeN3EAV
+rG6duD6lmT6SkPCHdTJ4I5mLWFzHLtMGGejDtSe9CDxB6TKvI3Ic9snwZsTZvEvc9DSSDN5NAegh
+lSr9khpw6KXleNBdHrYqKlr06BaSyhiv9dqp1rWS6opL2bSajc5ZuV6XboPOIIHtmYzsg2gnG/oX
+rNxIN/nYQWUU5X0R97exxSlfsn+Gc5WCTwJw0VxlUx7nj41e5NplpOx9abJED7Klb8CGr/eV+Vox
+7lC+b6AkyCNTDmLswewcRKydnNqdL3Kt2DVqpHon2cRRdcXcQL/qCnS8PnqzoEowIhY/GjkyMyeG
+vk004yYNGN3qGZWUSvkMgArXWndtxJogbqLlG0rCYTWj1K9SbdRWE6vVqs+FeRIk1cIpibaRjl8i
+l9aHHJwXJp/6EV06YXd0r6LKG/eiku4V6Lx+DWpRW2XC3JuT2GhGuXdnw9o3Q6u+uzO8JifN1zIv
+hn2SilYwU9AEdga25kx6z4wZHhpDbw8TX4i1rY3lylRpsGqt5l0x7GnXztjfDYAFkEQ4IU2blsui
+yU5VMTWWsonWdt+xYniBdZENU7XrCNPeO42fJvmqmjXvQ1NGEx+TzKajgHFm4TzXpR4kYVLa5rxz
+bfATpz422gtT42y29YJZB8kRDX28acrcdFB8ZCzW80RP921QTC5x/6hR+ip2qmGBVem7NBDzRizp
+lAt71uH6eO2c3Wa6aO8zL6JNuE8VwN7SNsR3kiO93BZN5Tg3bUJF5LpLpzxY0/oqq4tyGqa9gL5F
+vWzu+ZW1T5PZMI62HTN4GnKzsMM0DeqPsiyTgXEpc4P90Oot72lvOu2hU3Uy7WTHH3QAnXhOm1bI
+B6+VlsAIChKYJ7CpssZmhTbrMjokieZ46zmN7Ow45XJigoBu2hwrQjAp441lgOpXtpVcUB2cx6vM
+LYyYIwiZs+fZM3iuLMplUhWasXLVVaGpEnaRlVbFjTvpQ3ejq2407JXStDna+MPQ3XV+nWsr2k+q
+20Bv5nkzEJusbyfOPK+tnRD0EmCl5pA+l75YVcTnaERgxuzdazEC8A72R+qjITGeDpukI+ATuaPg
+dMiJSu75WyiGdMngJwdXTx3oCxwNqErzhjTWN7kyymPGuItTA5mZlRYHbfJYllOO2MaAqkC9dyrt
+zpybV6fMvb2v+/sUjCEaUlBvjWLezcbU7LVuOdMu9CUvyFNeb8ROlHYPKcHAVW0a35hLv+dp2wG+
+tVJmjw1yY5gj1993dsRfk1n3JvPF49C6R6YZG85thExaaictQtmDPstdqeTe8OgSddogfsxKvsFG
+fWW4UBRFiUHCUSVgYljwK5c2PZfnZOtqdnCwF2cAObNjV4sHGgTKVT/w/amYFHWRtjZEd62gYN3y
+Bj8nWZasRqu41v382NYMozym5mx59RHNLNtHnXPgSHS9DCBfWcbGk9NSfJMm951WbTvL3jhFQfW3
+ql6MzIAOoUS0FW4QjnX7VNTyRgXdPjGr98IX5dqp0nszsW4TpTEkjurxaxpXrz5PKPXU6RHPUL1n
+xn508mRtjRJycCZJ3eCJWmn5/G4M0VVRO/etHRkrmiuuqLwawswL6svUp6RLWMuJyA2ebZAU2CrE
+j7mPW2YuBncV4jujN5w8dpfeCHZoTVeu0m6LMnuaPXWyJnHjpFZ6dKPim+zabFuqWFulkZXsrITp
+7VCLl3T26hATir6KpoIxdSHle981953u3RnUhZC76q8SO9hzl9qquLvoRsAk+JKYlzfe5VwpDqNd
+vPKmFtnEuPWkxTVikDdZ4Nwy1tiCS37qRYLbxlQBj+jchFYne8BD7Qtb9WLAyqC5GcD+0a846r6I
+uN3WU80mLoQKa3pEpmHYWL08mlU77DJNFbsskB+R6TQ7EsBvDSYtK3EwIATHOZ6efK5GG2mZJXqo
+8zEGHMqXWbHVDKFVzu99EcRtCP9/Z6fFS8ZliL1F9v6F3brPOvy077qr9ZeRnT5S89jeI56GvW4T
++BwPLANcW8dxE9fRsSmnx7zUL6p5nlY4om4G19s5lXupuLtxvtxknt4/TV13OcvxJudidao9795e
+7DNcf3WWelB/WTP6h7TLwGJiUPwKSWk9OTBB7LqyXh17eErh7qxVbzJstVKuZXHRhE4Z3SS1kKEb
+zNo6ULl5EZl4QCZl8PFMtZFvU9ucbigDuMkjUC1EvYcLDBLf8HTFK9CGwyWbjVwts8DNjBp136An
+HfgzzJhgIc6KCUDvpkyz70z2fAZEvaC3O6pBygTddu6cpt3ZnSXN3dDjIlmx23blM6AWpu0qV4xU
+7aGPriEyKDwyessp6ppbHDYCIEJpd6CZmZ+yo0Tfc0zPlrybkdS7PO1VtuHaYwOOEWbGAJphLgNS
+PICFtRW+olpZIx6a8ys1rreagwk3gJU7/L++3y1D11LDMNFlzFmHQGkYbxaPhIkcll0y3ANWXIHE
+e+hHTBfkPIfhsi/pFlojcqUXGeypgKtQByeH4Lry57DDO8eBrZmCY05LNjziJMaWgQAjWROmbDP2
+zsxpthH8VtrgIoNpw7DVnQT7kwUTsbl0UqWSvck95ipxEi48wVByJNfSkiMtUrn4iCLZHzsuVjHm
+Izc/SNnGt7mBW+5Ck8r6YcVW/YA3NPW3ZHU7DrUj9FRFmVQoR/3NKeaX2LYyyDetzxsnguQozMHv
+t+NsutANa3Vs/eiGYq6nNh0vAFGflDbJct20pn5VemNwUZXMB7c1E5RyZ0L92rpddWosAFtewMUH
+gyk5w55eKVyomww9RjSpGaICb4u+W9Vz0zE3No7VON/YQ8GbABfSStxLU4l1V7Njlla3o7n9yeIW
+eJF48wlLBNCoQYRNAVlo0so3NOxpr3IMD50POqVW5UkIAo+2Uw+r0TCf2kJNm3J2P9iHTqM9Mhu1
+7kffTaIDJdsMlRwr0t70oAruo0k3o82s0jbeFqq7Q9mKLum5N1gttHx4iMWgrA32pOIOWxDE0CxD
+N93gLa1BQLrCbS890Ka72cYGGorMxgZkiaHJL8A/XukJTpIsSbh/9CZtzrXIzQ+ltycTMSgyxbrV
+VM2RbRBXbdBvU12+Z+akLgeBwwD8wisz+njXaNCVaNFKWBnNLZvRtxJ5gKNHUOP/I22OgmvecX3k
+4k/9FVHbILCuCIO/ICZ9Z/CL/TfI9TfbEcdU78XtONJw3rBg7tie5+o+y2uOfP5Qw4QTBGkxG5bL
+0asnCHzBlTxoVnkj+Vd04QnsCe6QvXH74d3pdNZMO3U5isU6Dt2Njo+FlZLQK52MRbF4mMqyE2uh
+CX/DOZTH3yavbIeZUSe37N1wJxvaVrfDbLvbOcX2BDwsTck9R9b0XJUWkM6mVc0HarnLnj4oH79I
+Xg480DFOh+aqqYtS3TUdtt2V12ipAn8u+mYT4InC+6Xo0/xWQ6R8mbD+UKVg99qG1teBcfNUcm6F
+ob4cM62EZWf080bfEFxnp1CWNrxL5sbasWonSuGYMKek1zNuq3odr4xeF/eYDtsLY3DzG1tZ3o+0
+1iGfxsLbl0iKnNVbZD0p9W/CQo9j6MZwviw6+ej5CVBasHNyUgBjY10dvK77XgqGQkDKhm3UjZ5x
+lJVZh+YgNw0M2uCYjH4/710zbqzbbHLHkqffZ1NAHMzbkMtpkB2HAAPH2ihGFV8o15dy13Jg/ahL
+P6W8WfenH7UbZ8GG2SWQrzbPh2CHVbmLToMrqmPG6EYe2sruU/xosLEPOeWquKQ7bOQX1I5yZclr
+FGQmmWwaq1HoaYYSIxHb0tLy46MsGI1tmMyw8Maqja6XdtUpFLqwQ93xx5eawc1jMtV6qKKuCNus
+NEJsq+OpsPTxKeVwIWarOehpibKExvPdjky+k3rsZG+D5xY7ylUKHFWDaz/2MANMwuKOtqod7gyQ
+Q4J7K0/mPU9CEKBG8dprZm/9EOpV4o2XrdASZqGZFcXllZfL0bhXmYcjkzWmqq/zAbve3job0vqR
+y8shNyOVvc0NZh6ugxgbuLjW802BeXN8GzMRR9yS48l5cHodr2bT6Bi9mrOBjoInrCDNQg1GufPs
+R4xcVXXHIVhWt5ZPtP4xmyyC/G0EyZ4OqLPfj7l3Nodt7QVi086ir9amXwUOPstMlPOl70a8B0PV
+cV6gTK9K9pUQ7bQqGy3PHvhVTIw1Abf3raEDJ9x0gR0nt4USjc2mO+avkTVW2iZudM344Rh1+Z7y
+2fzgum0AW5Nc1oGdibWyCtzVZWLjaOniDKuX5nZQx+JWx5M4nD2ZTmLF+nVUVO27jf1n2Gh8YxAj
+VVtepJhp/W1dp+7ARzewn7WxCOrNmOeSSxwM/RJYIHbSiB3IuOGo11hh11vNZawFvbflMam1dYf5
+FucNJmP0RccO+G+7mkPAsrO7iRZzK7cfvFYDNh8cL43B11ObXHPGNVbHH1iAo2DlaaUVHFnYtDxE
+mptZIdqIRU0FFfRaLSswmVGxylImI1eNJ7ALyaFjtkkHUuEt9/cu5cvc+lnmbmgL1/s1UiEcxYiu
+t3zn8WSdRrco4uuRtg+eIQxmLzyZGtyFsndfzC7xXokW2HesEZwCPamx1tcex/82gdPAQSoYOG4y
+20jf+yZONl7bdKdZ1PNV3E/WXeGk01Yy4dwOGNlPfm8d6rY1nyaYeSVn5j21z+MmQvd8BIzo7jlx
+cEyaUxmdoIfhslR+h5yJ87WY6+oKJFG+9wEDJIbstrpe01fk+EALWXJP8BnHVSRqeqFMqBWKi+6p
+iVL76NuaEUrHOmj+/L10BzovJnPlcZuex1IPJzOQ64mpJbDQKBw6Vby6RsXIjjV8P+K4XM2yvVN+
+s69q/85G4vvG1PMh8IojdgC5KjiTrDs66O+r1r+MA4ldSYtDJog7L8iGVZN6mxgX+5bsafzU+v5H
+X0UBnvveOOKB1ep1lmUTUQbeC/xyLuTrhhkOwo7j/n+Wz+9A8WaAheXPRo0LweftP0ImkHyl334e
+Nv76o//IVflfLFQ/tCgqEQyPYfO/ho3WFy6BHrz4pbVzGRv+a9hoOl8Cat1dbG0OBRWEnn4aNgZf
+LDRuKD8M+Th/OOZfGTb+3nGyvDIceR9nNXOATyNqm8O9Ul2H+dC2jTCr7ejBHVprP1ui//bTO/QH
+NrTfj9x5qcD0sIHwPjCi+K0NpGV0t0g95drgFw57o3dC9uyP/5MXofAdzoOJUP/J6qYbLBSewEyZ
+IOhtkkrHJD8E879p6aVh4neeFni3Lqh/x9VZ9JxPr6NxpASer3MMXgC7kzeNag3+ZzqJOZbelZ3Y
+0Hih5DNttaQFpXc+E3u1dlzovW0A/lQ1IDk/QATqkRUqraHpln0vRZ01l0kKDrwoK5Mbk1M70goP
+/s6LbT/dplM0coOCNMU9T9eccW/bo+atbRXVxcpy+3haS5SG72YcW69VOvQfRWzF8zpge9PD2o0y
+K2ScBdiFFZr5sTnOMieo03DSaU1b+9FQ8X0lUMDpFQSj5IWNmXXfbdch8jOAKMrCjg6r+9H1WnSN
+wTEREEUE6i5nMS8jIoPAYqIG/5pXGkMoqi4bOL53FD1iu42f7c4cOq7YAxqvmcPOY1ZamSmCjesW
+ITdOLE8gs9ofdc6MJoxALyOx13315JiZM5Arc81vrW7bhCFkHlDhYmZv/PloBb3RMZVJIeYu8HQv
+bdaOYybmBQ7+6qR7GTc9T3rOG+5fpqmZaVQz/HifMhhMKALJP1f9wD+v5qsq7n0vdN28uvSnfGSE
+S8WVvbK9mQt86jcdIiHD5vxyUjXqsushEfP+W3pwa9Q6PVhJ5Tpfk3LUqPIcx+a2as1U38PG533W
+4dpbodPP0xU7UPPExITwHXe77GEsB/FeJSImQFey1W8yxf66yvNCGmGnHBhOhlvRJtxaBRbw3Bht
+3gLPzr5HRhw9RrkYHjhLggAeyz7FPOtJOXH68Xx6iM0ubu7GWoivJoyhG4fzAIOG1C2ektyvv5q+
+qvTQhFN8jWNqAickDfcpp435as68lhswVulNa1XdtIlir7uOnCmY9jJp/ReLdNh706Q2yCEqX8H1
+4Jm9dDLbuDKEyyfRyVw9BHGV3/cq8A6iKlvK0aXTvARxQQ1C4k2MIAz85HuNjCIGsTFpvjrMMwiW
+VRNT4KC1mBZjzA7eevI6E19X5my7Ioo4QEyejbJG3ix9E7HV4LVuegdqf1kIgxQMe+Va1ycEM4dA
+Qb/KnDnGIqF1NPnhai9XhgMsikRUN97SnYIz0DALwQ17NvEtzLQnQIAuhvJNmaO87YXnfuSyjfag
+cqt+xcFBexmT9KswkArxOuj2c+R1lFJ1ucsdNKIgAFM4PGAmVt2gbosaYzqBKXvO4PZSLbOZ8IwR
+XsuMFgS5FhsX7jjq1/D+GUxl5sz0g7icMEKjLJpX5WscNKjUmL652qggoFa6xMSu+TROiFyLDyqp
+o3HT2TqDIS3TZLQZwPJGq7xegqVNqWFSt0avNkO39fM34qhE4NDFcD4MnMTHldNP2mGmSVuscqMq
+b1splk9deCbSV0slUjgMVZEezTqoKB3o9OIx0fzJ3ZYM6wyuwRnTUL0fZ5BXQVdxRdMJcRDqsuph
+XXcFQ35PZW2340qd3xMCtNYFS5AfxhGz2ZUya8GZ2J8o3Rm9JB5CmUrsuVLD7g55mzHbGuRa8syo
+yBjXfo6Qu4v9UaLWzRh/diKrIpYnewLn5SSTeNWT5fHPe5KHax5F/zEuulbfpA1G7tU0USizEXmm
+aXyrUB1WNKnQMImHxfvAMJGUl07VxfdlEvUvshPetVcqy92AhxIU3QdVAtfRlOO6hstFRkUVGSaT
+eEizkACC+WKVPqd4I5p1bU3PejCFObUdaZhj/oZCrVnVreG3/l0SafxNNQTSdSREbEId7xKk8M58
+AvLs7agm0qr1MDfWm5MuMQIbVfHQgKrvN4Yz8hyYUac/GPS2HH2tJ6QYyTz5UHkav5r9yMfd1SNj
+BZdgIiupVZLeIOmTxSuuQAxqVRaYz0VhJteoEQs9LDFM7DXp2Ie4HqEqBwg14w7Z0Pvhn7nL1QB3
+HYdH42nr4sxmbgsrucGODbGZ+LO8W96Rnlp5J7r0ehMU+FQ0nNjPvOfizH6OYDyf+J+BIrUDHHrE
+G/A0pFU3bgrDgh49e33wgnjmf50XuDQiPJzp5exSrVGRRm+VZhMs6pSLxnvLRRFC9ZlWnccoIzg9
+eHRWiVcU34Bow7bGbGEeO7Oc2f3O9Gu37xQR66aRZBoWQLajpHHirgo1u1gA2v4Zpa0QjpYxLtA2
+b4Ftw8CbSL/4C4O7J1f/jbhDV29Kkp5vzNfgdXuIJM/1ZGTaqg/i8qU5s70pA4gerDPwW6YaTquF
+Ap7MVLZyDdagg+dnUrjBU3VLCrZ6rwJZvA8iIoU3nfniNtK5XOVab56GpLMgkOvAyGfsPQ9lNOBP
+mBZYedXX3rWhFoJ5anb21rbm9ADPMb/TkgVzrp+R572hNVu63IlbQMADij6fAekxTTPuyl246bGd
+UbRScqxjIJfmD1q2INaxyfTPw5jGbzZtqTm7uD5/XzpusR6VBtFxobcoI8MZ3g7knuUZjbC8b854
+dwL80+VUl/N1vdDf2aswnhF7lgdZVoW3ci19GPhcF2w8JV/mi5c6wOTzhSs/LoR5+wybTwvfOWL0
+ca7IRSFQNGcwPVg+Dc78L8B6H3Z9tFDsCYoBtC/PcPsyXTj3uoJ4f4bfa4hEdy5zwG/KXeD4hbk4
+7nyrlrxNCz9fnFH60RmrH58R++YZt5+OHVEiW0Dh12KXfM5C5h8XRn8X283zbOU9GisE/4Qt5HJA
+87x2zoB/i+3pfjxj/8dzBUC8tAHAHKQYYNToCBjOdQHV0hwglg6BIkmtZwCjFAvAPTfvS2OpG6j7
+pXpgSJvhKVv6CJrMQYWczzUFnu5QWZCf6wsY7vK1yM+tBueCA0l67LI51x7kfWrlcPstyPDAqOVq
+NPW432i2W7sMiuhOiJYWhUlAzlxNS7dCbrmMP4e+K1ZBGoEgmHuNIgb3XMrgOLnK2ZLoajAZ3ZJC
+1Ob6PZiWMod06XVg266+dgaGrm2u0/uAFdegOceOnas+a+prrrDZvSNNjMHd0hsxnyskai8R98HS
+K1HHnvPEUcS/L7E6cbs+V1DkQet+G8/FFNnSUWGRVo/W89JcwQbr+yAKEgot8nLCsMw/SJ+rYfA1
+IonV8INWz/EGjgOVGMm5HYOwB8fdc2nGcC7Q+PObyu9uXuaiwbFcY/RcbNXLDeMnj+dIPqOiV0ms
+nVyrbwuNmTan1mGXTIb7/OcvdW6D/MlPai++d3CdixhP1QpW5N++VtUQQK2KEpVAONYDowvojRLO
+xNfa14hDKI9g68odprlYFTb5xm0gnelHOSFWbsAkyifDw3GA/IzL+8Jq4gyRPE9wgcCNNC7GcRAP
+0ux8fc3nan7vmn52Gd9LpNTU8E6j6rMfhqer28C2p6+OM0wZblJHUMYu8uBtiVB9NdLBrXGIkO1v
+SzN5cBt7fq+GorwfsEjOq2zgfrQ6vy9/yTn9/3rnHRZig4/7f42HWSp+qPc5vlXf0+a3iJhffvQf
+Uob+BcgLpmSyIpbO9Zr7/T+oxPYX3yfeoRN9/BX18k/ftKl/Wb52gBeJHNm4mXkO/omIsb5YXKAt
+H00gwIz61xAxn/QFTNOex3MU8E3SF4Xk05d8YmaeeTXD8CBXzqZOAEb4kTvvfnpz/kDF+PTYosqY
+v2k5/vQqf2fL8Sdt5m9qOf70Kv8zLcefFr//SsvxAkP6OX60fGK/aTn+9In9ScuxAzjIv4y83vth
+5FK9UOpkYX1y1HD1Z6XHAvUmR273hVqfq48nlRjVpkPaZnD6v12A/Cnxw+9hLakEg+suuS3+89tF
+3P5nAfJAxwBkAcwn7ktiCat9bNCG7wwfePTim67vmGsJ+9IorSzd/XEpcj1VxdXcRmO6/u9oRv70
++f5PNiOj4/68r/6Nzciffsm/sRmZ3NJvf6vY+zuakd1lif3pTEIf4n9/M/I5FfXTYWX5nv9SYYq7
+k33jcyL2X9XIrS85w5ezHl3QaIilZvZoLI7ANJVR7G46Y7DAMWnV0T4XJw/2aH21Eh9aAmWj+9qv
+ygtUNBgBbdQ4l61R+fKXAwSBqT/uW/285Zz/qgR3UeF9ns2lD/bn9+tvalT+pDXHw9/SqPzpd/kv
+Nypb1vIk/vaDJh5JINNlNr2cLD49P/oYeDm3cT3E+IXaZwU5l0VuHOoJJJZINxnXG5dUDcoCLvK2
+fkgwQeOIciyWP6gw/rOVJIR9MgIL767KkmA9dLX+OmtAVqDKcC4Nc5APT03ra3ftGDTPJrw1foBa
+lT2IMfv7BKYcfn9eBeU2QkNRq2AyAgyRJERJx5AGEeso0IubvBvpyKorJV81MVGGNfW9esgkvqhQ
+l0J/rnskTKxffXqv6YV/h7nbr0MvabsD93GGqZ2IpjuvCHy5xvPhPoxKr9uQKxnRpqTIEJzKrrV3
+SBK2tVJU3MtdXw4DGQw/CjBZGlX/alY6zDbkk+oCOha7TZp7zgQuha4xuPmgKkLL8eVL0yr1RF4A
+5o2dIZ2uldva2Q69br6ilEahjVv8azXOfVrDtHIg3RGN8UUHdwRVHOJE9xxMk15vUMmzV7cSPdPP
+2hmfggKL1rpKffuumDzjBxWEESbWstMVRqlgfsJ7Ry9EPxdOvJ7camqO9DPp94aWGnIza4iSoYS1
+YKJEY4vD/VP3WGbS0r/NiR7MvINx9wGZYu65Q5eGt+7m3jhhIgCcECSyfa2Rs1uwPrhxLxoXGX3b
+WF0iLuN4YsZfja2ewVmRQO9D2y6L9FFENYSHxLXoQYCDwhAiJ3BDEDiGaVVZDgJsFhmWoAmxMo5t
+NeuMBKQ34gMpBsrijGa6CuxBt7dR60VxmBIKxyZD0Nze9I01fUs8b9LRhiUAogy/WrZW+TCJVf+f
+7J1Hc+RImkR/EdqgxXETSEkymRRVLNYFxhINLSKAAAL49fvAndntmbUds7nvcaaLGgjhn/tzDT0q
+nru8fWI6GMirtVDwjeMNF5OTTD7Nvh8utX3traw7tLRdwZTei73aFTNNiQhYZCJEat/7Uuj7VE0G
+GuhMncYOKv8qQOXnWb0vPGOYkqXAqRQHPvWKcboWLbr3xq33zHXId6TRwNkXauxA26/lNnFHI/jh
+fcLvtTlhXx4+ofjpJyB/JkKDT3HD5k+CQTnAfPlj/MTqy0/E/kwk46v6BO+rjcE/aI8kEi2ZLwQ0
+rBcadvsiyZmb/co/Ef6phOS1t608vIafkH/zE/ivP+H/mbUVATirMu+5L9tdrKPMvJpAQfBeDtD/
+D4aJiwi9TfJsWjjlIzgyvBjIGoIMVbt40a1vS2dE980domXZEO7XUa4MjogpDdyxv9FKsfyym7Lh
+yZHL8tEIt7R2YVWRbppaGdWEScKOzsLCehM2pveE0W3R7KeCpHOc2U1TJlp78qJNLDLXdhmcSzeR
+DNrpBRvqLl8IOicqy6snt4yW6sCxrHwaOpt8SYyHV9xvf7HusOBHN66LV1fFJQxmdFgjctCFs3lZ
+mp3nVCPVSVuMq+9A6GHVU9gdkfaZVeW1SedJ6Znph7E4DmWMoOwA5oU+ku9nLixkRhHFaOzdo+ad
+gDfmkHDqeoB+14zzXh1HECzgDfku4JIB/t/RpY/9py5zvIORdslMKV79G22Im8AZpcEjHSXFlk0L
+GvNEJiCYqU1JI30ThSy++mWYjwcdeGt+aaasP1Fdjrey0bOlkjKX+rHE56N2/jg660EvWacJqevg
+JZRlKe7GTFYweGxMsp/5NqQaBlXDPlqVf+cK5cKXbM3ptVHBsMRzuNEJMclCKnQ3aCGeP/iF84Yy
+xI0E1ZDSGQiHTTGnX1mi4R4Ouq8fFAHDD9sZhy5GE1cvi7v0BBI3cKKlBL8lQmLwFN0NrZjzc/80
+P3mLTj50PwVypEj6CeNF+clmpMq2/u4uuiGjl1fziLlzIzkym4LqGCkH5GL0SXu06LyXB+TpNNiV
+AKauKlAtudQeTCSFLNbPwlJpf8CVCQVzkZJhjIrMAOYgrSZQ/yojvGV2Z4THeYNRiona6NhcJ69M
+YJx54Y5pPugqbAzRbww+EC359P612zCXzIchXkaf9Mt/ffn93+cdUH2mE1kbNQJiyz+dD+3FJLVo
+M5ABKpddys5Yz6kedfyvv8p2IfvHc8HGaKGj0Wai4HGX/8dTVcciyewxxO5tFFDszAEfr23TqkLa
+A1SlN0O/RFM6p8aw/teX/n9F6C/AYH+7Of7fetB//JS//2po+fznf9OAfP8Pn0WYP41lueBjtgPv
+3zSgwPkDDAPMMSoFLMJXW2nV37PzwR8WQSqO8uA/cLQQLv0fDciy/rDcwIEO8l8mmH8vO0+K/x8f
+Ho43Ng9NtF2SwdzYm+Hmr0fyTAdAX/FUJEM5ifrDXKw6maUght3bDjOMylNkHSsVlEnfu328+W0f
+oiGvWM+j8VaRm/6WiiZ47Dduad84xguxVMa4XT3XHEkyIqKrVgN55WrWh6yv05OQxDVaxxifvEij
+l8Omco9WQFKumJjDjsQO6XwVZCyW/lvUBVmb1I4wfVB8DYjSGvISc1Pvt6ar9DpCq8KRq638Eoix
+wlydprc6YN+O537wH1wL70ifQ1GKO2/lkOrTorKhYmKJA3Zv14o02Lj2oMz85oKjeRrvzWqy7+dS
+yae5ILHS1iXBH8vx//SYXRcxrp+Ipi2vOjICYjmzhV3flwu579oQVG5Z8xfEZWwartOkb0SK03up
+/OwSEMO5bzP5WoxlsTcn4VwqkJXQo4jdrmtxW/VSXQiY5c+iApacD4RCkY+v/VTYDy5BhrdUrO1J
+h0VwXoxum5uYTvZ1oO66iBew0kngj9A0dWW+QuEBjltF4de5nHr8NOSkXaBcJ9uGJKk7I+PYrAir
+BvRQsT5qjrat6jJ4tRorfqHy5aH3W7yRoItjsUzrWbVZtG+8qjwz5Xym5vPile3bGHEyIChQhor2
+oWDGbF4xA7La0YrxaY9JsXhh7NoW9WWFmcZFVnctqLpeH/hT2jtaputLBnGGqi0ToiUOsl1kF+Jg
+i5VECzScZBH+cBhHA3dKODoHmAMYwYPOPgMiaX/Q0aT2K6EnqA4bnpUkAw4Dbrd17AsnfWx799lq
+C4ZlbofHw4tlhgEA35F4XqSZHdaKND7Ru+A0B+MWwOXnrfy6vAZFOOGIdfwnvkL3zEwZO/NgZQcH
+MOS+GcH1llNFjiecuoTIxjw+Ndqbw4MdMswjosF2XYKUnTxCS8TpL+AXx/J7Q1Zt4Cw8z1HhXTPK
+vBnQZ+Qdm1PDyIa9280ZirmHSmRFuLlrLDCnibuKvLMeesswiI1rGy6zT5N3W7OvPi+gmdbizufe
+VVn0JhftmfkAx7Kh6iBkCUqz+mX6TdiFT5SRsCBoXtxly9T98vNVfEkbXydmtSxnSa3ct6aENbub
+0ZBvk7fRMiW/rJyrR8OAOx/26IDdcz2U/YFTEBqgwg16suTs36saRNrOgYLwvoa9ustqMDW+dppb
+DQ/janpW9V6nQXRsCaj8aOkeO8o+DR5W/B1m7NlpdczJqD2vOuM8jVM8h/QgYOlNs9vc+avcctB5
+yCI1M9SkalL55KdSpwO/yobOnDh/0VxrCTnKiB+/Xw+c+i0SvhGR+7oN2/1aut6lnBb/BMh3vM0Y
+c7cYxKsTSnFPr1rNlTEPCT6mUol3j2TyM02CY4xYXkEGHe1fXlAsXzHfAB0w8kHcu471tLZOvm8U
+L4wflPbLQnrhORjW4D6ARbunXM+5mY5y3oJupUEPZKRzmu3Wmy+WlsTdKmxv+a4dcvfPnOveq+wZ
+yM12veJ1K9viTRvGcMsxhuidO1rBi+kWeQLlE1oJfW3eVwxQWN0FhorAzonblLpMqAYGHZYbZXTk
+3MstjSw0nA7PI12TwfaGQIlz4poHec6KWVdPemSEa65buK7jtpeRoDHAwALqrBJARUyeJwhEiSuw
+YxQ21nY8AnPxPQP1RZQLiuwu67Bs5XAo46Gtff53ObqveOKjj6YtpvRge874YKaL91IuujhZq2ne
+olrUL2seOZdiKtyPWUbWU4OE9KCHGipJvgQrgPTRSXTQBn8Kk2+HvrJ+ukFdtvd+WVQPlTUY3wrD
+9sQRQ2BwnR1vYXivpzNrEeHPQS3qECywz7UliB6F2rsreFZ+dsQ5j3qJTJHwrfq7jRDM3cUdeuds
+Tr1K3HrDezjOtBvs4IeJ9+coMlMPOw2jin9CoBWjlg2JxOoBifpdnriB259Kw5vJ2PnjT39W2b3F
+bkmnnBNe27TFSGLBvb9aTbheJqyBT0RuGAZrA4oLLsYx7lIHnkU2Ns9GZA17sMGZwtRMym20K+M2
+EuSYcBk6/W8TTNJJD/lC0bpsHoTDLs2tNwsfqtZrH8iiEPCremw1URNi1q7Tcfwy1WuBySd0Q+pX
+h/otVeyO3oiov1NG4B2XsC2e4aaat8kP+qOyNhKK4csrS09/Z/Y1vvlqqHekokpYD5Dg1+BnhJ/b
+PwMbDj/ygHtCm6cmMZGA32pT1Vg/mSu3W4jJ/VAdwa2mJqPHnSm7cqEyHjDGSaShT5N71La/GlXr
+ry4v9THP2dTiMgvSd3K36bFp1gfVAx7WDT3RsxU3KVaWzm4w/4dAWCG9PkaVFxFW1u9Dng6XynKd
+r0FEgH+nhtB6Y7aWxzO78DcTVsCPVrv2frUq9YVVT1yrIg3PfZitNxgi6ET50sdW0HwhVXwVGGaT
+QUfeXe+Z1UMj+/EwFM6pbo2XAtJ6Mvq6UFQOtpemnndp4VsPiiq/RNtqPLiEkPgW+H0mpZ8Od2bu
+Q1IOiEsEtAAmTaXNh2H2Cmrumy4R8MPOvMMkaR07P5Wm9C9kp2tEukK8haiEMc48d9/61nIvGWFc
+JpNbAOGh9KgHozwVjKwPqWV6L0XpR3u2qQi6hrPe5spaHvsyyt+aue+v0TS3L1a5tkcvqoejBVr3
+0LSUKkCKrg6KRsDLUnbTI8ZtUGbhtEOfVAfeM6niMkcOspzXwrHgr0Z7+MVbGjl/oET3Ejb5vqjW
+g5eKZJrDUwsmJjeRSeT33vltVaP/SEw24hptt4QB57qbj2vgq60wwEmfiKRkbxgsj0uwDMlsMSrH
+3v3eue18Jc/Occdapxw8C0xdczbu3dStrIeGB0+jGW4X8ab+HQUi+u2kCjSTO4o1aU0aIoJMmtcx
+Ii3IPN/D5RGM93Y/8F4qIV9JQbrJHKJO7Lo193E1pGn+MU39em484E+Z4E1M1NJjgkzNNyDSQBa6
+AvMXIt0BAj0VFKXOoYrUJK771bL2dqWNH2ZHbFw4WuyJ4sx7qylMbESYCKZB2zeI/iBJoABh7mqw
+IC7Vt8Fsxr2REZ7vgTNcOKDO32dlTgeSoXaML8nbZ4Vqf41mkJ6KZlyvmHD9uE+XLAHC5O8NAolJ
+3gKPAbvSc4wrhuhBVmt2GM2me8Lmzul1KissoVFxcY1sOOW5HT1H07IcJY/r2ddIRspVSZH5+uLL
+2okhxfrAD5V/9BfHuJguhd2twgw14VZKQBnYSdHAzvI6RAYxRdad6KxvGHRe6yB7MzIIKn20nTN7
+6m7hN945Ct3Q8pen1JlFLFhVdnozV6e5XBNhWMvzIDLkzBEka1EQR5qnjsmG0X9d5zZN6oy/aNsG
+/M1K6ezqYvrtUGS6H8gTJYU7YzMK7nr0tj200xnIZkgguRket4aUXVCk5c5b/SvvCobngUA22H2y
+kFk8eiv2S5ddTXrFDwpHWJLnwT6UPf8aHPvOCnvzfaya333RfAFm/7hYgkFKVuOFbRrcGV2gk96E
+BZRiHuP/mxKvxuXtV84lzRbuKmWn3s0h7X4rS2kUmcGwTpB+/biurSUOSrPcA9XY0F7u9xFa/t1Q
+Z83BMdrg4ADOPZZjWT/TMKA3VqREZB1fFaiJq9NocRCdewyMEB/a0ij+26ziwQ3ui5V0+zRa32wn
+Q8YKw5JFuf2yyuksaYUAX2EnC43ju7qm4ptugpzoHaj1SNGxYEV1HELO3sG4vhtxeD3Xvc4OwkOU
+M4wSFlTltZdlzKMzkBYefnaV4+hQ9zuibV7w24FwHkE8zti04mk0LB73AZ91UI0vxJbl2aghmefl
+DEQGbbbK1S1sgq/YfKsN61ntMz/dYb1LwAMtw7nn4zBz19OrWo8hamrSZ/V01wcl5HnHILDv30ry
+2nt3lfoEHygeVXH2XbxizcrnColVN38aIZq6ularFhd23enUSl2/kNXPz9tI5kwiIiPeponNGxYH
+O7gMoX3+VA3+X0r5i5RiEwFhEvt/iykPH9R9H2UHAuOvmsrfPu5vqopn/mGbW6IHJxhzfeZX/62q
++NYfQG6YgTqe/ZkDQu74H1XFARFF2NT3IYShmP1FVAn/MBEskctRVsAHuta/kxECSfmPosrW8Y1G
+g4TDVwKZaf+TqOJoSoUg64bxOA1jfUoLiWK6KBvftV/aA+vuKIiAljoogHaAGz9jBeWJCkOBXz1c
+hXrKQ27MMc5PY1c7I60yHp0QIK58N8+SeoXDclyXNA0fbaARZIJtPcbRqMVjA/PBjK0KvhnhmepJ
+LW0B5ahXWH9z0NYon50t1+9NMQ7FIy708VeDMtwl4NCI8XJOFVeXiUW7I1Il31Or16/NOhHvNIMO
+WsfYAB9Hsze7a6nZqo6V54bhY65SG0xcwEhqdsz22ZKV1RytIm1nuQu4/hI2sSQ0o3o30iZV3Edz
+2nJpGzLuZLvaKvKCEO9g092yRCA9jLK0WtLMpl/ezwFsjTjDRG8dG7TWglNsuISHmtKpnDgOwYVr
+3Ts6Qijop3HPZXaFQWJCnkuU4YvxAJlujeKhwJdfcZ2sHLGnvkqKoxWagGc60JZb67dkonDvjlIv
+dwZeYvenLMqO22xRCcWcJW2wqDvtYj/aG+cwbrem76TEcT/cuCQt67GfpWN+p9Sl9r6SrSzAZEQ5
+c1bshIN7g1M42replhG54LwmFkNGmCC5iPxhvATpVH6pgVZ8EMxp31LOJGRZUjtk2ALwCJUhc49V
+A14EXclx9ly9hpJ768y+p/vmxXFmHRNv3wdrxI9s5yHSRFumeR8zdfI+9GIU4parZr4FDfmNpqEh
+RqdOzw0wF0RNXQpFnNhwKJ6J+zFqikcxsqschqrlEu6EFHkRQgorOmeUTM09CYDCvzKJGSMOjlxz
+DiqUTZQEXb2q27rSy8X4iGO8Js8zQYbP1nGD8DTYTA/0dQHXM1T9IT1TvBeUo3c7sZjS20mnC409
+qQ8z7rn9cKuq06y79IBuWIpnICKisbvXVo29vhTVZMA5QLAYYl4W7X6gSEaHlPNJnvSdF1no/evC
+raAg6nFS4TT3JmLN3HCicNnsy4mRj++OuCulgyMppeloRdFcHkbtrFl14fPTuZO4lrW+UVgl2dPk
+1MURf+qjOy7fAo/RycpA65kYCbPUYUES5DE9dVm37It2YohmU5rVg5PRqYpVP5I/NTl4ULttBmuB
+fgiKDgUuLa/2qPOvhrHo93yZ6pMTaX0YlGofjFBxyyi67ieNOs/txDAb60a6j7oQwJ3XchvruGTt
+bTJk9JblMLqd0oGyWSBW3Tr8tO/8bNPJTju+IouEc3DSPikMuiucmsCt0aXVxQ6G+TYNvn7iDkvn
+eDbuhrnPn0JVLS+g8+TzxAm8wVQemUkYmluxVlqS4gOffh/ohrYejhfQHn0Nh2aFccZLshhvaxQw
+mCvdUNV7ciDpTWLHujdqGJ8wz4f3kJAe+EDGZpxHYewk6DZkZKbOvOfCjvvYtTQeMlZQjgFOHzQk
+5iJPXrNsRCvwOqTm3hHL7xaJjywyXIIqwdyc9oD3ug4mVcQTtIcLaC0cayDfJfQDoYpaleVTzF5w
+A7yRpTNulhzkJTAr8wypZcPIrrQT7Idutot9QMrqdWJQSQWQR+sDj6udS877s3PqR9w3+1k5fNdl
+YCyxwZkiveia1F2cQg0j8hMEIaSwRnD73JEzKjZ2hFWX901twSwTC26dikZe6tpYNsn1QX1Aey7k
+n9JhMHtWgxzEQUaTPLjR5FTPg2nBA0y3h5Pce2s8pB5L105GbjshtEsRPHWR83v1C9a8NkxM1FL6
+F0RzRXmMwvKUTz3LO2OjyJXVuXA60hiURJieAcWoin7pAHkz6Qfu2o9pZVfsMxHh7P1cVMv4VJKW
+GQ4dBv8ozkqIWcfJhD8Zc+L0zqvhuy35kNY4FkgvU9CdVwDgzX5ePSsOddFfufBjCOxwjC8Haafu
+d8d2aQrylhBUGtM0NhI9dWfDHeZTpoY0x+sgC5YjHcwoV3Bu+S23ocIPM8/i0WRC2oX0QdzV3lKH
+h8BEBj6EZUVTCnMAP9xb9tyTkzfL4SyB94UPawZBcTVmlvhZaRt/zAJ4pOLmGp5WrnxkfIi5lHs3
+LEPi5KhioYOcYrj8q7KXwbK3WuiNZVkxdpv5FZ8oRwPX/Q1/xetMIJAtr1q9n6Malzttw9A7yqa8
+pfSdvHdgZ1TMIsmDgWgomndkN4rOWM5NQKQ1B1tiJSMMBbF6BGR1WcK76RbDP5qsD+WBp8lt/Ti3
+0Uq3CQqwGaL55TbQRxG+1Iw4dhv+KZ9KQqbr/EHT4POU5c8W2JmLqQa0jy3szzY+Ob9q09zuEFG4
+WzwP7ZS8KegjmhobYseSG2vjb/WLEFe1UlV3AtGrfZbGkBcgCtUOdzrGJKILwjvn2g3UfvEz/8oZ
+PnfZahhLNIh9xjRQUCVqiL+jHH74szl6J8samx9dPVHA09bd62KFuFP8dCn9sx5atlzIn9ztIskF
+/aCZdAI7UjhedtJ12mc7U9ogV9SrfA+LyK9iDCXDl1UUVMu4BU05r/gT9Jeh8zV7+CgicaTObzk6
+nA7Q3XXg51fQpC333YWwxlrlfOpyqOvTMOMU2ZvN5k1puWL/rEGVfeldrP1xNlvm7zXv/GfbpaM1
+RmHP46KcbmlhJ70mwUipz7SnmSqJJlsgB3v5heW/3E/OzN3FdgWbYgGabGoPqbCiBFZU8M6c6hTM
+thTwwSJLI9FF9lM2boIGIZzqcVnzL8Aj63Zvrt5uASUM3QnAzy0oSts7qzWsT/4UqZjL8XWiomm3
+dDPOppFDQ1bnPcxNvH3llwp6yx1DMvD0IAjDr90EY3rPsyvA5UhdNXVczGtTPq3Kq0sCYenKXwik
+TOpv9IYGGonYT4Spho7DW5Nx1JvhsBhUJ1aldQZ/PNo8+6JJ/MbqQrARHCm/+104PSD7yfA7Saf8
+zcomFfKtmqXBLxCy4jHTPmHcwuJxNju7uMOsQI9bV9rUFbVp7kNbnjbiUGR8pWqn3wO/Wa2WTPVm
+hTP8JX00RgcKGEVD4dGRK+tt4LnyW5D2VGmVJCOKuCXxusIUsWASSbcJXUJ8s4tFLuU+Cy+MEeiP
+AW8yjXbFujlOPOKuu562O+e8ZM703HRN0R3yXPZm3AYczWKiWWlxzf2WrZb+UmLHVJIi5Q1R4ZxF
+UKwEfU1USarg5G8irJQHpuwfJRkoH1aiFOsFdlD+ZXKY3vXCWH9DHl2evQCbn56JXe4Wk+0hFsHY
+OvuRGPQ2ywvqO8Ku9q2vnehunBun2ntIP9ahLAZxgYNRmUeLWYL9WJXFjGaeOYYFpXDiLjutXQHv
+1Sf2C9gxz46BKKW60yIPOaCZthOnXvkiZo9XDv8HHjzMQF+Qs/mocky9+wCTxs7BUwN1ZRiac6/H
+qGd/ECxQGKWI40MSs78AIRJHH3UUPbRQ9aM3Gc5yZh7AeGLty4+Rk1dwlJ7be8cGhpw+2uNyWLMw
+VrP1u3fzhYo+qqSGcj5VoHJAywT6SgwvD/gZRB+d0G7V99wzzPWMwkBlVFb0B7cjPnywikWCJ6w4
+SZ5sPhIdP1P3XeRn91lqb5ON3Kvk2RNVl5EtL6J5F4ZBHya+552RZtrL0MgFiUq4XzuoZkuCFLzQ
+MArL1z9KNlpWQ9fhmLrYS8DrgyqXVBy7q2tPV0t3MryUAt5GCPpMA1k1qHI8NH5coXni1CU8G01J
+mAt648zGyGGHWZVv3XdBHe5Bjc3rSTRmn/MdjHgzOf/37bfFd72j3boDRsQcDCP5LqYsNY1XlBJO
+U3igTNR9hoHf7aAwps7eikTwojyRVhA7MZYxGfWhPDO+jUcnLcgq9uIOI5c+DcAPYElFw6+gdbKY
+tky+yW5UzvX/pQ5Z/Bz/KllYlMT8K6XjP5qPtaN/4X9/zN9VDv8PEjrmJh+gdpgcjv5b5cA7EtBI
+ZPkWEbXI+/xPf1M57D9sm3KoKCS1h+fI30Acf48PUeTAdXbr+MFKiOkk/HdEDhSTfxQ5HAYM5Jfg
+oGyaCcUL/xyEmYtI4DkQbCHN9DVXQ2Ws+7ZfXfudojS7OSltFpGVaBqwNMYRUfYp7EMA6d13s+XM
+tveFMBjISGM8MHLIRFJJ4q5/YsQYiw9LZN5FRP3kPOTtxn9CqRD9o5/Pg3UHP4YCZ4NYd3bW0vKK
+pF8nwHO17g1syOaclNPkP4/2FgV1+7k6IjmN5OW5bqc75YVLQN2BkPn3Foq58RzmXsR7kRlboyfj
+vEM1dEFwp5A5vhud6vgkec6w18KpkeG3SqqqtfpfgQl8rVrYUF4Lk9MbZEi7KBB2FhMcdqkgXRMj
+tG333nA3QCS1LswupwqHKLtTrl9XqFJAHSrCf8vR6EfLvbYYkC/lwiXyx0SvDLKLEuN5kt7YbFAt
++v26VLKvlSk/MblVxJJv2erkgLRmtk1nWvM3qBwwJ7nOG86lJW3NNp+Vy8lpYYjQn03IkjsgYyc4
+k9zKC/il5Wl0zOY6zFh33EF/a3E0IRp1pngeVF6VdzrLeuNhRlybL4W95jnD+bx25gsXdxrPViTb
+/BkzUZT/RiDig41utPIdRYADJ9zl8x4E95aCAwuKvzgoe3Lqr0T6UZRPtV8EzXloUIt/WDPlEBzu
+6okKnSq2HR8CJgxOD1DGT9s3+nL9tUxigp3XwVCfDrAOFaPqooJy8hUwPaZAtzUamG+lGvIfri05
++qtMxLMLJCLtKdqumY38KawxZ9rBbCDI4HWXPhoKJk97p+cGNjHPrOJ3VXvbjk9p7niPcdhtjovG
+S3WmajYVD1uHQnqKOMmDnY0q7kMYhoCcPMlxSKkQ8WyGqBZDomDlED0s5V2Hlz7H+qNaae3ELPXb
+oA0Bbbk0jXcxYBN9jHxsi++BFcLBk2We2fcUYDo6UZUBd2Qnh9kezgoNPv8Z5NK2VQwTGIEBh3hZ
+w62rfOdx7BYnmLDCG9XUbx6Ubunfzc7nSjMvFkg2HbGPcLIuvXgYBrxSnP3Hu8rvnVsLdu+XrYxG
+x6WsqlufYWjY2VENoWXDxMyGq/YBD/rO8AaZ4MXHKBt46gcCmPveVb3P4LF048adqwdWgGE3OYB2
+wIoljkbOxEjQnF1MUfughrKDl0Ptmx5tpuR7ONNO4sYytTjOdfwGaR2pD0xkOHVk0UUSrX5yOS/t
+l8rmZI4FQklx50W9gllQsaGlnF+M3v1TFEuZ1G7z1A3jlLilvBOrvT6Zee4dnD5Ud6E9RklZuOPR
+jsz+ofUHrLVTgyDrLMY1XbS9C7vqUTbyh6WGPua0VZzqedLHBiwTfwWzP81O+dTClDnDsrlOWymv
+GWI6we6enpAPV/pyzUcqBarElpl1ylNKG2CBC/9j6kGND4sHv1GE1iGTNlc/xsKIHlHjuPXWfBhc
+CFt86UP0O4650dM4VTffTN1ksWji25lYaQ4dIKE9ZqLsbLthfV4w1AIgGIoEMOOHkW51JIPL82tP
+sI9kVxxmlcPK3kQOvYk3kZycYyUFuSF3KYrn1cc5PkE82QWY7ne0jkmyRJXxYk2T9Y51vr5Sa8/t
+d81YU6IIqHoFsNlsJoak9RJiXDA47U9G88swBRpQpxnKN3BS373ed86aePveQdM9aB3ND5E965dJ
+Tv257eXwkAfhO+2+1sma9Hg3jbODOX0Dqqd2e8dYtThLpp874cn2CLunOXcBjAb2gB+OTZftkHvL
+3WLJNOblop+Bt+lgpFNxlIoZ3lpm4TXgsArJsyLg4NVedCrHID9JL82emtpdHp2sQIzOWRB3Na7v
+s7XCJMXGMn3DE2Dcd2ZwoCmZGaHUID0as/7SSQBdYrCcK0b1PvG4uySLwlrXgrt47BeyGxiVYRuY
+7ZA9YSbJv+XNVt8jVxBDrT55ixvErjJSzOYzx/gOvIVoW/Vo5k1KhTK6bIOHKxajRdeMDCSD9Qn6
+DZIlsZTOh77ElLg+AXSdYnscykfJVeqhZqF5RyHQl7QPpgu8CVQASnvY90ahPPOosBq9oKTQm724
+ZdwzSYx4NbNuZX8KMh9Eq2ng5nLXJ6RL+gSAE9+HdZU+YyZ9gysVXOllKc4hKRdNFKdwf9N0ke/H
+fJgP9IfpOF9VegjWfLxjU5gYYyyG9dIwSr0uuPYamNCW+pnWHkwsE7QV4B+Xyl7WmTEJvKY9TxYY
+TmiJAEMEJvo4Ejp88PocmmoRDMGfMjIhbQap7net6UhCJLAxuJzYLgxtiTzfDdLT92TwacnFk4o0
+lVej6T9ivZBvAyMkDuKizH71ZdWfas3tb0ejwnDMihrDvmOlLwiJ3DaHPgTy40UG8sBgKjaIQI9X
+w4+aB+A283lemddzanAfihmtymjqX53igHZCX4iiXUSd6N5aGAqPpbn+qKeAeE+v3j2aPgBnGuW4
+A/9QvpL8Qq5kQvNGdnHc7HthcA59PLdhvZQf/uDKi19SaOy2BCZQAqabKYYhrtsAh+Tchfz90F9i
+qtcZnzRtdmHkk14z1T5JYuYxDtDHju+5nW2KyDG8bm3ap2lpuOgagghA+nsVbpW0ok4PJtP4cspU
+7JhZ/0Xq5hYE+itonIg2qaa/ZA65sLBfuR4zgk48T7e/6VBqt+nNS1HjLrIMAHnRWEjgwcGvdXs3
+lVEBxQUyUpJCGbmZrcVXtWAvxoF5hV3B3rBppgiQ2ApBHTtixFnQuI/aLc3H1k+D04hqi682MG9d
+w+WYcfobkuTzbMOAdaR5H87uFdPFOS/C4dXteXu6diwZ1c9Zd4B0ZzFXoNmjTlvOdZo1dyTLlWut
+z4Ma2dZLBlBuXgCPt1E+WAWDG0mE+l67w3+ydybJkSNZtt1KSc0RAkDRDmpiBmvZ906fQOgkXdE3
+quh3U2v5G/sHkZlVnsz8EZI1/FKTGIS702hoVJ++d++5b6BHph26uOps1kWFMszhViU6OFTLbL83
+Rkarl/EEwS9j3Z3kYAVXxB6LrUQvfGMuFRii2GNhqv2KyGV7jG9oWIF56lvvYmi8bNcgs7w1IeTd
+5LXVnmRO5TKmQ3WWNTGzAdXhU6Dh5GuvZiORIR8lR01FKI2GE+4MgAjvyNyfp3rW59JDEVAilzsK
+YTF96KdkCY4BM8NrQgadjxZO6BwJh8nVJgH0sa2D9Wk3ySpICXvs9ZWHRhDC1yjD67yjK7WtBVHe
+IMKrSI8q4Vci8kzsJH364ahlayKjTDA8XLEs8VsFFpMDBkjJnWlWEIYkPD3eoJpytrZCCOwmzaEi
+ytl0tokHpT7zyvJxjMlhixy6bvyEOTHyvXbaoXzR1jihWvTYIjWIZTTHNNi9Pa0n+5Wm9lxchG15
+J1OuOzEO2MHPHTfslgwAoXez8OKDryx6WDVBaM+lrQQDTsNSPv1HhO6b1utCnLFWyHQDFTSivxhQ
+VbMDfIxenBgje+RAPKdHnz3+5FhlDZEQvl16dP1gHM5x1wTXntTqdaF2lue20MJ7kcF6uDYHf2ZE
+MATk03h0W94ExDF1NQ89+XHmElYrrg7aA1hJzXiF/mCijeDRCwOKIxRK3uJT34x2NlyUjuH50wYP
+VtGfHYae421m+aI/JdDiq3tql4r2/gwg7btlzwkSi3RMKabyvhzmUwYe3r1h3BQTFjNQiJcbh9PF
+VqO6w0kaBp/zOBSvy1AwUliMtzyGTR7KRR99MMhRoiv/1ssQD76zRfTJS7K4sjuFY03VUOiQ1YO5
+Zio7eR+yoVCF4KhS+PTStH0wkK4n34huzwuCJRBtIvKB2gUmMEDisyXWqJDnJVXhey5AphF+RLox
+8pmQOcFuhH7GyK2jRkFmPCekn5rEaUepSJYfJdIm9JhFWD+NLmi8K50vMwbPbFxYne1gsttXzGjQ
+h5AkYZO7YzIwX8VIXF6VVaPaNJM+VJ8cZh+CxPa8yGv9+t6nYXxwbGCVlnzEy6zGUz+7C3/RHRJh
+Y9nkEGaQwc6LZaLToeOHdbWuQzBbCHhMevB05H9gGIBg5uX0Eh+8lMyNXQP6PLWPRK8F81NtAMZk
+tloST4rWiLolauEOjqT8oO/eMRDpFrnpSpyzm6xtarTUcdj4Dxx2dPxNEeglNqZqen+fOIao8S7W
+dKYJbJhMo9tRS6bqmS2xInYjgI7Nj/XkYiHvNV0GupQmTT2hosp8rXc12k+eiMpaJySapNeQqhcU
+5XUOaQ855VLiXmtwEhJ3zl6sDr2X9d+QSgcNBwDQldeoq8V9gIAvg8Xdx77y98q0m5umcoz+Xcgw
+R5QItzjfhg6aVTrQ3iwv1Kz88mGguTlHIONk92Q4nBufE5km7RHmue63QdwFF42JH/CEDsCkPQds
+8JgvzlyffGdAIgUCtFM0nceM5qxbognYJyE3MbKBh12Hedl9ECZq7hy7rV5GWIGPgKacq6wV1dHt
+jexMPYID2TKrH2lIhM6EVRcWcZN5w0c7d3nFTmd6/RWuDYvzfxXwaNQJJtqdG5bt+LPzRVsfkK0T
+4HKQgyL5a2261i6pYwFsulZ5h4byYd6nhlgIynDC1sKZ0loDKV1FG3tM5+TSrublsOgZ+UBuNzjp
+uK6azsjqB2EjrRgCnjBjHAY3Cv1FX3AMTe8RlAmDmVhCnAJjs9B15Y3vaaxH88Z2Rs8G28exkPLW
+II0K1Kj/St21mhAQteFIsDOK/PJ/kLP6/z0tCHPWH3X5Nm9J+vZri8/+/R/8tcUnfGjHlmniIIEH
+5CEy+a8Wn+P95vp0cn1eHDvEmEX37W9CpuA3l74fkatmIISP2OiXHp8FQBlXWWDSeuc2m5CQ/4Vo
+1a/wHtP11y4jXURyDyBireaxX/gWPHRTmHiUSaLok+0yNcHT1I3s5E6WPPxyXW7/Ylf8N/yst3Va
+dfo//v2rVfL3jwptF1iQ7YTgt/7+o0TssyMI5LJeqTTzm9SJ+sKwzv/6p9g+Si++DCfir3nuBNa3
+HLUTPDWJ7UcITZpLAguGmz/+lLU1+3eOzPXL4PERePQshGrul+tmIypRGeMxOgquOmYQ1i+71O+v
+3V66h2RiZc7k5G462n5ElnUDMMS+xziWCTCX85/my/+z2wg3yrG5i6TLB+uv+8ttTIPK7ugIEf40
+cyQnlqG4mEy/2qdFk139yVf/Z59FjWLz4BDi7LhfwCsrQiDzZ+5jkqnHPseMUNfisMT50UvdI1Pi
+7306grKLT6kTP6BM/kZHFr1ps8O8d8Jm/mfMEeuLGM/lZgCexmtphrbl/QVN/cu3B9zp5U4gcX1Y
+CjlEWekpP2Ph7vUuyBKNsLxtK6QXDPvse2uy03clewO1yOBY9u6PL88/ecphMvNuIlwUvL9f7kRr
+oRiZ1wcj6TzyWblllw5hAn/yLv2Te/B3n8L68Ov9jtVCKzAjRhE9pNpM0KkjqZYmaomWiP4nXwjn
+hsNZhS7fl9utlEbhV/BC9YtM9nZIG6ax2aH+B5+CEm8VfAboM7/oKUMOfQX9Gx6qOsu+M2nW18Zg
+ePd//CnrT/nVR70+KOtqGwiHoTAL799fNkP4shlW10ae4lUcyoYZI418uZNogi/NJs0v4aE0ZzFk
+w9O//tEYcU1ax5btOc6XL1iBs7XGMhzoDsrkarJc4kSlZZw437q3pRFCzPU9j/YfPp0//uR/fCIZ
+CTFmWj3qKEvCL0uVMUoPkjlZCCTdtVcoWepjEmp9/ONP+cdLG6wFZcA3NJkamV8ubWK2g2c2CFV7
+u7nHtvA2OCTkLShIMg30WHZH31F/Ap1n3PbldgZcTDvkwQTk4n91Ng+JOcq2W6N4oHZxXLQgG1yF
+zdJVx8YSBJRqzk9JxDAX5Oeg80zADPfC7PmPv/pXDBlLD4dNni16LAzkvuKZXIWZk8YI3BiP30Ks
+EpCaJtaukCMj1g4N6h9/3j+51HyeY1qWCxDKXvmBv778s7XEjrQLTl3hkm8nuDpHcDME8jKPPwIm
+f0yAWhxxtYZ/co//cdUJgFsHJnWkw5NkffngZHEyGCrEtuLCMYBX10aUOzrcN9nc/8mqsz4uf/+m
+8lGU4ybIA9z13pdVJ2mqEV4tePYKDyoxLTGCvR0n+Hnell3lvOFlsgg2UQwI/9WVaA2fWLPueZpN
+ZjBfXxdi3Sy4ITZqTfCahgraXZMjOvrje/j1+7F1cu+4e1xHO/CCLwt4YBcWc3/pb/o4Nu+ncFhz
+jnva+z7eq6ye7od6/pPKKBRf79/6oTw3SNcpG1kCv1xUa+0EOqIIEataWXHG+6wsvVWrEOmzxPY5
+Xndd2pHRBTxpwgfccWY5dXBSw8csnsvySmc6s+7DGbxYJPGa1ccsGJPuoUg6jpXTXGJiJnm7Is3S
+zc0MPL0Xl8ZxwgBHkiDh1jSYOPiM3xmwDLa56XoIK7d4v7zVEanSpf00NFBcsWlt3YRXYd1hRFFK
+JNY5l53oFaAfU4gbR5q62mtV2eQgIVFv7YuBNKD2yqb/710ldQ2PpC8dHh0GoXzJVCy8HHW/OvyL
+IKm2ndW54RpJZ4B7ly0XpcrALW04YY7drSSJbkarFS58cMgMaRe6RTxfOhVO3gcBVjDlCEccLk1E
+RrAIdZN03rnSYJSjczm+uWEMm8iELg1sGKXIa5lO+N8ggzvzLvD7ttqB6plIjufieFFJp6tSG2Np
+lufeZlnb+D1NZUDCiKBgL6UtASS5Wp7RnS/jwR41ipneCdMfoUFYO/T5ub2pe48LpMbWv+yWlKa5
+ynQot4th9MFFCAroO4FqvrkLsJwzvAsrF73IKPPuB+WQJs0wo4E43lt1DkdoR7+tR9RStc48v1ZO
+6RE+GKakgeHP7ZOTmMTUIzMdXKRL1dy+DqpB9VrXQfl9pB36gZiyXhuvZWlF61OSYg4Y+/dxITdp
+S84f4QXSAu11AZc5QSlVOO715AYaWz3IujvDrBMG4bJBpZzEccn1DmdjD9UIlIETjBW83sZiGEab
+wpdbxLHez0ZXSFKT3iKftEN5/mZOKnyA52kV+Cjx15GBAqFuixhMZfTzC5r+CIsXzP9mSZhIlRiA
+CeIsfk8JEKhRbRNYEJWEXn7PWoA950LH3dPKVMIEp9LciuKhMZ5HDjYPRecgwg1LR7wAacbu3c8p
+7ukUk/dzG8ekRk1mnz9LfIUJ3L6qcredLdPxEkf+eG2WOArwpA2Egc7dSLAyfdMnL3EHJp6+kVzH
+7qpF8m2X1jbRYdxFXXkA2eA1JcSCaWMpDmQZzg/uGk28RWHdPQb+uoCmQT3FuC3V8tKmfv1JWgkD
+LfY0r95NNL1wPSFAeR6bvDOJnjTLE6ANlx62VXIZs3AJr5pWiXLrNTzU+DimilXLTP3zgqQw3ziM
+uiF7FTrv2Wnh4TM0NqU6IG7kaVzBIOpIBATrSYNYHzuvkyLRdgrUx4Eh1vluIgChgUQjrcHy8tHe
+5vFM24YwNlLloHATCUA+B1z/0u2HCOl1+yqMNvwWGKpQO6NU6bgZtbDULmYeUG37ysRBxkmrfNLp
+wpgIPBCsZpf1QYHPcOckQiCGPRFp3ZpDxgTK2WQVscx70skmkkcTuowkRywIqBwtyvrKMvrpOYEQ
+f1MCG1lh5B3T/Ya2LAPQpezEZkriZN40JLOp7dwv44dsLZwAbiyQHvNrJecma/RzycNjHQw985yn
+1rCMu55UiCMazp4ssyJ3f+KkBiQPm3vtjjstLKEytIya4kJUWNjThkccilyMjWiWJDKzRiXl3Vyn
+brextDVkzCBs8gjgTHi49ysPu8w89l6Jk78DPO4JNVo7zBPuW+1icT+ZENKmLee46blFjs/NtRk/
+RgkD4asiHDEYQ7cGItzQOnzGC2m82B3iHuZAcSGjaenTgWcbicR2znBLb/WQLLguiRq8JejdkZHb
+mzl5jXCijK6sLucYE/y2NUid2LCo4KGq3Xp6ZMyBBHTQjFT0GhE5c02iEraRw35EbI+pU6YPA/Xy
+GsZaAYLog8XamplA8akZZsOwGDr1jashXUyfHk9CMZrABesMUgquYBFjGcpl7/LEx2a4rZzVlZos
+pS52AUMqnAx2ZRD5MWdkGxtG7MpjGAd4KnkD9aFytZTXYdaV105LX3QL8wcZS2Mo9x7/OiJVx63Q
+58S9bNShXYw5OZox2LbL1kbB47mtKPY9kP04qotynTpORNL14WTrTSsrO9sGOmMarTvE88ByFBKb
+CoxBttGWGQ/QC5CzAhRAweeGMymiaTHQ8RQumRw1Op+bHEcTTicWiSLC9UXeDN0HLpGGIsimvupx
+R0T8IVGhvU+0g3CBuHgjx5Vt3onswbKz/NOaMsKK6n7tEzM6U1ZkqnS+d9KmZPYl/NmJ6Mj2xVF5
+S3VLnL37xCOPJcMxmEpvkJN3uCnSRb2QFpDiiqfdC0cfIy29TS/gD3FTJN+TbIbu41tM1IeuA+nS
+OyqxonLJmSIOtc7dXdcojFtdbDvFGZmWYEweyOqbrbx1CFxIGwl/6CliwCvdLY+zNsJH1qJSbMm5
+QC4SG2Rpyc4U7zQPDMSUVOb5xsbPl20U9KVraoffk5y0+QNrQH7HY++7u9gddXukJcYqbDCGqo8K
+hAYd2yHj2bDLPrnHuQybDqywYohIV+GRQbX/SUNo+Zk66xu0SPjHB2XjZ0NrkHky4hfSdw5bn7H1
+wDOjea09zz52hWd/ougNnb3NaMyCVChLRkVYAD9IB2F+jTSYKWJfxsV+EJWfbbUgKH7jW5P31JVY
+Xzb96jffQHcBAGia2nmSWLdg2tESPg5TI+uIrS+4hnMkrZPknmR7V9vmwYv76kD8WGfsOWRM7yJt
+PXGXi4AJM4Q8x4iE7Hx8wK7Dcu4YqKE3A2ItiFEORiDGFGtwZl4YxAI7Pmq02mVwinm7QLHejqPa
+BjiVW4AGpZjYMSjWNrM/+s4GNiHIRm2O9pOnhGjwW1nlDyhKZJdWreRyOU1ePi9VratNM1Sp3LVo
+FWKWA/TVuwR5UXNDEJRvY83p5BgJE2nAGz+rnHahcjySlswJq6NjMjzcK2WF/MiqqH5MhHJAUSME
+Fld7jQCZF8WAFbopB211L4uauURxVenD6CX9GzjQ+RGMOtwWNWKCR9TRh/KKMVc1HlC3+fICcUTs
+0MInnf1s0lr66BrbSbaw+s3XMPHHzSIwiW0HI3bMbeYCcN0s3GrCc8mc3empRAitcr+56OvK+xnW
+HK2Olh4rxnfosSuqSS3jPUim5VvNuOJy8tzmtm58NBJNM6n8aGboXCLkF0h1mNw0iKagr0SVKBPM
+pPza35Nah/ZFl3TpRW7m6iKdSpZvFMiAP9iTLWpGZi83HN/HrR1q+4ixJczx/1f2UwpImzmb8tNv
+GSrLu9pjAaNnMpjvi9ZruLAxBG+LNSfUFDoXzwGgWpQa3TSMEYhbwKRWkth3AGrRP2lu/wVxbMmj
+rqiYCVda1EWLZCsDFbDoHdO8PGCY6JbTqvBbU5HZxU7gC+RDCqjkM+6M7j5heHm3LLH1oIKh3NKu
+dsiHSqeB+1N1/re4lIgiB6v7hCJa2ptuzBwKl9AgPbonO2ZjKzRoWEKr5LFNQpStcVZ9R/JodfvY
+SwjRYsoSeywj0rviO6Tf+3lyXvzJGADemuNiHzybJOzDHAb1w9yOKYPtpmlviSfiHfR4Inn285AZ
++tLgc2TP7i/gzbjfxzwNP+k/1W822g/3xuL3Z7Uk4KiIwKroU9o2TBWncuruBha6aou3M/nuYqAn
+2aa0kW9RYKCmKVO2fNeYH0nekfxRNtsdtWZdjnzbjtF2Sskhr0fbHKAwQGrMNklrunjjh4Y/pbVA
+rpgJbRPMC7Ewj9jDJobKlsLJ49gcZZyKMFSEZqN/p9MZySg9XBOva96jNsT7IAIoAozzdgIsqs8k
+fc1LqoluYsELIbTy9432R1qMmqEnf/MtmxdxoUOVfqLbncOIeBJEG3pcsBm6VUKuXDuSNYUKyVYP
+NVsgzipX6A8MUcVLb+CE22DF9vkRXescOP4YDMxpe993boBdv+xHm3yVnLYBxuIQJnCPvOk+TQdi
+54SfNTdSD6YTBbJOCrxJQ1bvZOk3SG/imsop1dqBjAFC4MFPrfzeIf/5s9V2cCUgnfoksLbDc9mk
+fbxFBlze97niWhEyTbwUKd4+1iAjCOC/hTxZ6MRwUHPgnBMKMFZZoydbmjTblGLHotJ8Nww7aS9L
+0y9eOtB6NjurLn9YBYykTamU/ybmxEwOjpDc0VrV4nUxLZ0dEsocPxpJOaY47N3S3xmmi6AVKpSr
+o65pBQ0+N3vWUrAI4j9t/KORpCNmYVw014M79u2JsQZuqzIN58OEWARjZWaoB0LOyzOVGgEnhu3x
+6ypqABmNWO0eZq/guja6H+5lEHTpHvelJs86Tb0rzq3Ju8Jm8jJom9CnHG6uGZVO2yDwjO2BbdYo
+eMitdFBRKI3i+xzmC9VL6mdk5MBi+kAI7OH+dv0io1ZXgAgTVYTprnQKOZ1VJrJ8l0qMsS02Eqzp
+heXLIx5jvn4r4+Euh92f7XJrrURNxjLfc17HFLOZN//gJy9vGDoVub/JgqR1NNGIb4lt18XBrzOE
+d2GHk/MG5yhHUnbNttsMZa9gUBOu+9gEnEEjEoDUe93iNtsYYEzRqqLtEtQKZSr27hB0yX7M5eBv
+F7Pzzw7tjuHSm9qY02gJO5ZVnBgDiFG+xKXlhNmb0RGixkS2U9uhMPM7rzU9Tn1TJV4DbRvBsXVa
+5L0aDVi+caH0nGeCFUJIySVZ12hC+a9B9l5+lonh+lHT9IG3g5onn6RupgtUHqjhgiTvLbVHD5jB
+6q6XWQBymdKZ177L9DDRcMgaeZx0FrziVg5egAmqb9jDi3swOTQXaZFzTsqJAEq3RVkm4zbBE/Ax
+2iPVYKqKjmD2pfJQO86U/riFYkH9nFXirIZgovmCdB+BFsGhlOGTmi/oXIx6ly/hcD+jxLpHPuZg
+aNWaY1cCa/mbB4320zUoQjlkjTZAc2KBCPv0i9u+T121k6CG5RZZ+eDuCgK5P6sldX7CJ6NT1A1L
+iInUm4eb3LJGTLicypbIxYR53WE1yjdIb/uDzRkL5x30Qdz1tHSqPa9Pxq7VapLkkAyX2baeEPQf
+vHAxMRFBR7E38WgjBQFBJl8cHyJztDCMQwZC7wp7a2mSqqbZs/G+jr9XkE5suFtpTEWzZ59DBjOM
+ygaY4OnwY3aLlnNh59uvs9I2wrB0yH64jYvupWLtqSMQaKneJB4iX5HnT2PMPSGZiki2GRyutR2Q
+TiLy38PQG3ErxxhkKZJkqE6exG3GGXRKehpeyXBhVVhweYgc9e7XRvwmyLG744XGvMph0Pu+GAFQ
+HX9Q4auoKYHoPeGi27TGHP80meO9IGim0u1SEYMHY/qLHzAx2L3LwIqwr/cU/93I7hbT/44QGSF8
+Urxma3+HY3/gmtVzGRbj6wTTTW0c3SHmj8cKIUNSdcupSeryDd1sdwv8ni5H4jIxQ8Bni2uS6NDB
+DdYk4v3QVF2z7zh5kR6fZ7KIZvZiYA5DL+FIJEyWsjUQ2/38vVX7v9iWX7At62zolwZ2RIzzX//0
++q38/I9/339+fKq34t8iIh+/+qD+8m//KnhwEDwgWgiIgPDoMDOT/m/BQ/AbE3M6zzZjvhW3wVzj
+b4IHy/3NpTlthYLWNIwWn37430xNFjYpRrz/Dct1/hXBg7PqKn4dLTgmzip/VTw4/BkKjHW88su0
+2JnVEuiShgZrE/Ya+ACj/b4G5iYXiG7G9qOpytAH3ecf2qy9jAP3sNT23hL6AghLDy8XcKQ/N1FR
+vCofupBjnkwZXJTttK/q+n7JuktVpeg6OVDk7buaaqIzCVUr8uZTB9m5jOE6GuXd2IQtvedq61oq
+Ys/dd0KpKEZd3Qh3b4bjK1K1wxwnzzTGD+MQ3ObFcok+Nt/C1Y44yd/2jXtHi3WnknA/jCXITVhy
+oTLYfNRB2um+LAj49FLz083jB2mIYxWQ0l715qGzw9extQ5zZp3tufkUvfOAXOm6czOioiix/PTo
+5DM4CYjhxXSybL0nPxQEL71y7fmHSjSviVOVm9SNz1yZM22c/fw5Nled92jn/s4yqBn656Lz8YTR
+vxOLOlQsex3BrTky9SAEh5rx/0Ii5SVcA0/ke3funyozucAeUUc95DeHMhrzQkYgsZN8FxzePQeJ
+Zx45AQUGYQc5mIXWIBUCKl9lEBk8/pznpyXr4UMYW3JDT8hzI1ZZ9qH57DsowDqoTwHdJzbOenmD
+Ybfqqjc9LAKnde9k9k2TECGAwXGw2Wo+0rHOFR5dU943JnCU8UWm0z5164PidvrX7EkIy30kizRx
+53g7DVc+GC2PrDhFLcR37X25yyCWmbgxGlsdBRyGqn1V45lFfQeqrJ8/pGtvzfG+T54Zqcz5T0N3
++9pXe198T8gkzrOzUdzbCUaB8LgY+kAM5dkj+XAysp1HBwLxR0hy3/Rg++WOLgdkH3mI84JSyb+c
+MDMNkuZNFk9b3032GrIQBc4R39nJ972XPGlu5eLCmR2PKQogK82iNOQOdvFzDK+j6KprEA1XBAsf
+LOEeJhCZ0dC4e0sHJ96oE1S2fcppLSgUxhd17TnDoQ+LfZPHh9SeEchlNE3Kjhtn0tFIrtIp4Vvl
+PKRmcDGGSGdd+6mxO5DJMEAWD/WiFDALRhTvdrGbZ/GRBtk+caWNM1jtrHC6LB0ctKF5QP3Xbto1
+7pu556GY4ptCiDNY0oPjxVtQ/JJtOfnWQlmm/jriPkKmXjfHhK3swNjeZ5yTRKYUWOn7b3LsXwTa
+nagr6LyyAtyrBC61pCEtg/ZiNpuDm8W8fenL3Nr+iWzLk9W7720Cr6fTHmiE8o0eSLbrFAVmpk2g
+dQEiDY7qD0E3v9eugeY/fWDR8bemMT4vZVsgGCRxOyf0se/dbSuxhryQJ9kuu9HNkVpvg9buvhup
+EwyEoozHAFfaAU3uezh0emfkY7PHnFTgtLEHQg+89ybGfckRMLsu2+CjWvLHaSRIHBgUZzhtwjHt
+odkYmGhyElU3tpHRhVFDuo/HbrjPmuWxrPlCfd5eQGAis1vBKBqTZ1aevZL2bqzEUXp55IbfhHtX
+P+eqiApY3F1AFeUtW99OmWbOvPpuKfZ1V++NvGMR1TvNF8TAcWuPw16X3hBVofUzH7rsVOTiNKTL
+rvFjHYm8RYkWHyWY13jEnGi7u9SQ1Uasmc5gAp0lfFCGdWEQ4bLpM+fCHcVWWcBi4nSyIyvRr75d
+X+XeeJUCogBlepjrKaqr5WcoOPyR2mpvVOtFwvX3EKQ+Kg1H2Q1PYQhrYahuPaCINFqrh9FMj94o
+TlBhHo0gPnhV/FJ04X6U9CokxuzaPIJ62XZefq39/koOSgE+WE1mtBAhTR0GhvLLvASb0AreQUpd
+4m+CGRL8wJmNqj2/Amt3N2XhyalLcBTLq2t1xS4siFT2ZHIDDJxZQyPCXQn2iyxq+qW7MDfDq0q5
+i4hUYTz4fnnlwgr5yzD+fyugXyogdCQB8/L/N7juUKf/5z/1r0rPv/6Tv1U+7m+ssRZegNBf5Zyr
+OfyvSQCu+M1e7dj8b4JH8QVRFP1X5WP/JgDW2Zj5PPQcFCW/VD7hbw5aJcb20KctSrR/SepJDfal
+8kEsg8/8d3WDhZYrWPU0v1Q+lpPAVMslSBm/xk2aYyFsTmM3gXH1vTG+nkiXXkFf61aHASUPdzGD
+5p9gTrK1d2clH2acK9Y+N+vlxRTy1kWsLiirc7ChHeuTRXeVSexS3uEQ6sSdnIJhOTLLHcJzDGOG
+rnW7dWHEH4idarEFGxDv7J7polkkLNHwxBhuNOSbm9NHBkcLTGbfPM06mM/kwuvPBVDeO9FQKaLD
+stoFk2ANb026LZbLbmJPXneAIN/hyDBJxnWcIZpcIKU1mGR0QrRejXMnjPFH5zuJuxkDNmiALQmM
+NmNqYrVhatgQpONxVbYFWWo7z0NJSss69L95fReE77EXc5xyxmZUO08Zqd4PocWx06BDoYkySUZ1
+lZUjTaXRAzmMBRdoyKqm0OpjQWNQEecu5pfSdNMCAAmHsShsM++i7Ru5HUQI6jO32uTOmS0O2X4B
+jfKlMgASVeU6FzNTl2nOArEMRaNeKazGwi+9cwwI9hEKdvwCvw/UMm/M3vLZwRuXqQb8mLMQW8Sk
+dDYuJMM7jFcOwS5sya3r3YJX4a8Y9LKqh8EV4wEnBhE75lDf0bTdW4V78prUewE0Co4J8BYt7dy8
+SrCFbdoJqtgblqMnpRHY9zDesCkLIpA5fhvbGv92VBWTtYUowq8IDX3TGc07RhkeQnvWl2mR/UyW
+5FQ63R1qkCBn8mnAlqKbaXbXTctv9YEAAbQ5HLynMFMffpl1+cUYT7BZBFyUeMt8NDyEXu3B+Y2L
+lvotq+Nq15Rxbm1oLRb3Sc2UmOuUj4+DmfBtGy31uc3Dd4MrK/egAOyYqqIKH4q+kz8mBuopBI02
+i08j7oY6F9t6rvZqcI/V4n0kRJ3vgipjz0SHIL2FxjGhBr2bXKjOvyS8nU2ece0J0PWjLsyGI3QC
+utv7qXR2T75xdjFawU90L8RiuIQM2MWhheun21lCFDPJbjMfcZdfaBKOpiDYFYZ7wCVA1dvWEb72
+YmfGFMF9Gq7agZanRyeXAfYXgxCtPShEWR0WwXBnX/lTeNECOLkKcNaXEbqn66kfLoQnntHg3BTG
+CAyP8dKmscdg2MOgTs90wsguMqowu/WK5VuYibcSaxigB7gm9yR7v0zeVBGZJEX76FeB+FmwY0Ed
+MhLJQyO8vT2L1zJZ43uMuBnOHGfqDwDcQ34C05Qm+9JGxrNZc5aukeVi1mcTG9Ulkez97RyUUITL
+1jgBv/VWPxrjytNUWumOiekQUih3mCwuemtJftS+cM09A3HHhbGNb0vmB9ESPHSStT/Tkc2sxt+W
+AU3PTZXHZnKG/OQu3SXJ8hRDNKvm7HrGzu4c6DE54UXcqpwbx8mMDk9D7YbKqLRbpsUjPPAxtuxm
+2yyJFNtQlTkjQin2uHsXPGm+8q4FbDlIGHTFKnBL5rhOx6pqepRmkDdv4xTDuC7hRcxtMEy7HhRE
+zo1roSCMDa4TjVXZ2siKzjyYIv6vk7uF4Eg4s6rIkU1oIzvN2lKnMRNn6YIG2tdBgOOulpMlT37Y
+OQ6iGgJFsl0yh2l7cGO6opHj4CNkuoFJMSDHoT8ht2Xty3EWtTein1d6hRiH+OYvgAkTJ225zWoG
+kC+jpK7ciF409kEYSdcdtApxYhGy1gTl3jTALdKjuSoast/gDXsHsCASBEjfvwIlvbHM8iVOittm
+rC8LqaBA5uNNgm59Xy0A0SmwEnzk07uHavSu7RcDj43Tgp5vmRGb1id5cMNhMWp379Yx4VlwqL6b
+rfA2c1pLaOYxRm5l3zbx+DgldMPTIvQgSnfpKe/q5bbG1XwwUozVs+kFgCOn6zRR/SHIQA32tUHd
+6PhNxB7g3kDYcLaJ6kA1wAGEtk0/wM1L4tL7AuI+7vkDBlgcYbkDRx0d16WVulX0f9k7ryTJke3a
+jgg0CAcc4GfI1KKystQPrCS0cAiHmA6HwolxIfuJzMiwCKv+5qXdJq2bXR5QLs7Ze21ywB6tmMbE
+KBCqJPyIyzYsvpQ1FsoW+tdVUvjD1lZ1v6dOOdzg1x33PuDUfe9O39NBfVIl4h3qaHetRecVWKa6
+AtFjPmXwmWi9xpvcrp9LMJBXQVzNF7hOnGuwz8y5YZTsPBcXvGeSgkWiDvZsXvHldPbHQv9lOiiA
+FT+FBoTjfJsjkCFMcjiNZsPaeHVcPAdoplZjyKWHXsOu18aEn0PeeKxxvu78eZ62M4fCOTZ+RqwJ
+7LE9UliQgtzFwv7WwrhbuZwqrxvPl+Yqdtw7SszDdVKY/SqvQ2M1JF66lh56F+woKTCXJGmfyMlI
+H3oS9372SZl+iqSuGoQs1KG2ePzEB5ZP9yIu7JFTNt+DBaxi2BI1mX5FhAqJXloATC3IUjM8Re1c
+NBwzvxCf46E6HpEi8inP3a5/6YqFnm1/xRjQXecvHbMhKoEl+CqfniwKMZ8cuGhfGg3nLqyb4qsJ
+MSpd+ePow6w3nEdWDqIl4rhTv3mH8uEK3Ep32Vdm/8kh8uGX7hQMLySrNPhokQe8slb0GFuz9WDP
+btnT0q3geS6dQaghZrue5vk3fVvzwZ89onZsZewh0xq38AhSHyVlXT8tpq5sK2KL42wZWZDLsat2
+W6r1DmZ2JisoYyxbtXeXtZ7xyWnGX95kZw+xB4n02VBNZQO7i/PI2Oo48TYoMwa5nTpiWFZ2GlX2
+YsZcGmNpnDyRk8jLSyzi2mRdv1QOLJM16TAoVCkE/yDxJN+x2NmbngpSs6abVDyjxiWTsnWm7qmI
+g+J7p73aAdbTROpC9RxqkyaDgyihYHzFqQ8qNSI873KCdreVMNLuusq0wbCgXn4cnUb9MJnrILlV
+U5fyO/XU7TTm8EedZNU1uyGz2ExydAGgJIO9GcSMAUJiu/uRSZ3kl5hJw7BHqBA37DyMAL1ApW0m
+zDZb0HAZUNhfg2+yYULj1dEyzysIM7l0ravGQDMDjIxpGYVkAjYBqAt2DhvNWe4s+jNZJI+5Pf90
+2/gLzEa51qK/yqG40mXgns2ROV46JFQS0caSLQhp3BhucO2Z84MTs50yfXz8cvjRmiXBPtizTb4r
+MCZscLYsYHe9Sy1+RaYUUzuxoUy0HOrBUeqU+V1w8uCbQfGX7SrTWeRhRjfsyNxmK1M1y4bOB1My
+bMXgVPkVh0hIlw1HRcEqv26j8qFVZMv4E5W2oSVvs6L5TXmN4zQNLGfVsa2Ho0NePJ92XXeGV64G
+NBgaKXmv53UwAlFdG7aogKi5BXqrjECUm5giafqpydD4PoJg7tRT6qfJtPOqoEFDQLVj5bgD/85E
+14igzaInEQS6R1nhJe7E9Jy5eHspfRbVL8w69Vr56bZU6FsLVEife7q0YIOl6roHw3eWQwKKkeyC
+XMyCljB1k88Ubft6p4rW+JWFIzdjKouZ8mIYm5CXYzA3G1UGw6+p159cetGXzL3iXgWz90BQUOD+
+gB8n7GvsoP1ngdBp3+qq++67ylM7glGdEB2JDO9j1pqvdhu6d7htlwDeKrzD/D/jbZrryriqRZ/F
+kEQzElFniuTgBtFS9beJhcCMrvhU5Pes0Y29TyeHMgPnitT9hESiBLsTQGi6gQQwzvsuRl6xpWak
+LqpSusxVVamJdwgwVtDHBCNVI1GixubFE4DjtKyMXdHZzrMBuWIP7DlZpWzmjbsUB/m2bBVCi9FG
+fHhrldyCi2z0i7WsOq/5AVugor1Sx+0GHVk7rOsXcLZtjG3D5myu7svAkHvmQqfF75yZ02UApYQq
+EHgEoIoYGKs1uhjBamtjZN7GszMEsHOdWt+hF8R80bcTC1lUonVZ2loF3tp5nXPWZcVnU27tc9Tm
+MxBfv75AJJr4qCAbE+GDkcEIp+CIbMQhkolcJkJgSAjCIS14Aa0Y3Gjcf0ilDfmS/LEOAwQ24fgG
+rJJ/yRdeJn8qnUTubdQaFe9t6FVwE1HjL7J0T8ldjlblgzAw1bfSJri0jcbvBAJ8bnnXHtMksgh1
+CjlyDqJyOO3g+dujkr0ME/bU11bYB7CvHaO7trh0cMPaUneJoZuv7gtb3SRm6p7MVl5y5vq1N0qK
+x7KlgxWUF4iTZ4IGxq++Kr/FfaSpZmnjK8dt53dPOmpyX/E9xY987WS0SArpHH4L9AnRdTtQcGoq
+yoGQTR6IUAXaoz7mBKDuy1peAZ4Xaw5zbDhjI92ktrnmEUaocMZhl8PLJU5BrdABYopngkG4238o
+KWJtZrsFekqS27pXrbcCDAZLqIgea6goq7jmEGU0Qc9+D9HR4xQU134RXtkKzsLaX6j0TuRBmKDb
+DSJN/DbcKAAZP0V62rdpAEtIvNDtKYDSoVAv0Hs7JN+mjmAqPrIuWGt0ohDyw6yHli/ShZwvXyj6
+cWSVHzGJzwqtMEQpDkqqrS7Tl5lwcnVqbwQBRQCBWe/9C5KSo18TzO5snVA3fkxpCHk7wxI06dNS
+0vvGIsqueTA9+6sfxMtBfYrGHwN/G5ktzevoQ9NWwC/asPT3cgz515W3RL1p30L4GGh2jb5fWEit
+MHM9YJNAxEW4dB9fi0F68eekW6TfRoIvB8l0CnD2Ew/Ltz9qKROIqSMKhlUSF/GTRZsn24DXtD6r
+uGZ4wmeSYsj3SSrmTRcLetgJVvI8tNJnoJtzsAHGwITIW8C83fpgz1NkckifkD5WG7+vPfEdTX9E
+fx6+9NNI1s824iA2riH9dvmG/2fxU+jIQNLokej1ROO6G28NzuCXw+A1l6BEE7KgO9g0KNCkc/m/
+7dTDlqht2uJkP/X2e/O9jP/7vw4yMF7+rf9bT7RAQGJBMh1X8JeXouH/qScK/z8ksaHCdEz8WI4n
+Gev/1RNpltLWDKg1Wj6ASPt1PdH8D+StGB/pBtkCuZT9N53UAxuaQ01SCIzty5+DE10cVBPttOOX
+U9THZmIQLU2gWPJFzVNBr60OxYPKNAjCzI876L05LOwzDiprMWK9sogt42PnxMXpWYLyvLVUO19V
+Mx3byMTQmRWQ5PYBR1f20eIwvNGiIQxQgAp7ytBADpxoBhppdhiGcmW0rXqOG3Zmq1e14Id/hn1t
+bj9yM9jvWT69q8Di3h5Yq+yc88qMgm2VKbYoue67H4M3GajOxwAuVpjdtv4ngJfxGVMXT/P9TcBX
+6nqmhTrZO/CRmegqXM6TwKsmkVfrjtLivA+0BWD99AUeeMde7jZtc94qx7Fd/HFv73ZRkjNBSgFk
+5rYPn/WUOpwigO5fI+Dp5f7vB6PDwkq9vPdUqt8O1tG4j40ObwbpouZVjWj9biilsdFeNXw8PdSB
+eXO5Lm8ZYjG8SKALyw1+9RZZoXAnaE2Ee6cy/JV21vTsd1LvM9LBL9IU1Obp8Y7cR49CPv5jPPS4
+ZRd1wqvx4BezTkzM4F4l/Y2BwGdNlaRHeOaLv39kvrCJUVwuDVXFwbuReIt4q0uBqU8CoYOA6x4S
+hFU69PJLsmJOX9hBc2G5kb5A1sGHaKEffSEmvLowyCtejqu+XFkIJtdhtbRCDYUondD51v6Fak6b
+e4W59IwJ+Ni4aEcY0qEmgvP+7Q3Fo2DltiMZdyiR6Y9w6u7syUS/WCbx81CJ6sbXsXEGAHHkMfp4
+4WHisvfn/zj4HLTURPpS8UcOyA4tLPnK60xVaynZO52+sUfeUNovApMxVAHYDgdvKDvqXqLtoALZ
+zmyde+THk6f9CxJa8PqUkXFzerxjl+bjkUcZYyK6ORxPDTJSo4+1sWqFd2kbHPdx1KBr8elXnB5q
++ekHU7jPAQpwg0SUA/Tp7bMTHg3taEIlaULku8OUN29Ibo13/2IUGMYuaBbPC17wEa/eTJOGDqow
+ZhOVkousQtQGWLmGM1yMo7cNe/6CS2YJXhRMrz/slhZS401s4VTujnJN4FU+XQgyozny4zk5ZwI/
+9lbgtheki6C2APPwdjjTnL2GgtnyAnZPupsfi0qBVkG7tAL0rs48qGOjwZv2odTAgRCLWOz1xdVl
+m3pOzcfdTCq6IrHE2WFzlZfmONbX8zD3ZxaAIy8GMzJfMy1VxjzEq2TSrofRgJo0aJStqzk2bQxQ
+lRWmZy7syFNjCMe3/IC5ywyWf/7q3RhrYeGL4DsetZbFIoruNzKrfKo/Sdg8nX4Rj9xFbqKwbM8n
+WQux29vBwhHvZBf5S+5WTLmYn6N+lo0gxDs0kMytci3iv58dWbF5522x7BTFMnu+ur4ZOy4qG0yj
+qU7CNfFFG7EEUKK/QDwRUgkaR2s4sxIcu6cW28Jlk0lfe9H5vR4z7lKjLgwEJbLNr2wKjdu8IMg8
+E4jnTt/QI7sulu//P9LBFtSrTfKoPG5oQD+ISjyV7U/M18gmaGXha+k6r/gwzBNRSSlO5XMvz5Gl
+J5BMXiTOuSAEX/rtr24u4m0/j1uMf904d/sZQ8bDDLxto9xWbQ0AzIjlkvDz6Ws+Oqi3TDN8HkIc
+QtmbIhishJQavBPc1CTIs+di8p6JpmhgeipnN5AwfWbM5T4ezNPLQsAMuhw42HO/faL0stABOU25
+KkpFX4ro26Ae889IE9OfVeEU39zCJLndMJtLe8AadvqK3z9l3qKFdcEOm6PL4WRgCkI2nRzZcS9H
+6xG457TK4yaCfqz629k3FgeNam+Nuj2zEr6fhZbXly/HZS1ETnGwtQBSEIBDKEGeguq7Xw71W7wI
+9uPpy3s/KziSvYTwyPOB9nW43mpZ9klikxrMBjv+FqH4jzdd1VblToRj9a3r3ej76RHf31CGCaDQ
+oM+1EdYeTHoxfZ7YpN66KjpqDSuVlO5DQPJmREtOJDvXIb5clhExviHZX+rM9HBs9JddPcZBuWBT
+3r5M2qCyZAm2pWZdxzm19RoeHvxvzAXBgBZqlZThPBCxY1LmHZRh/T599e+nJ4c1BUgNMnLH5vD4
+dnyPaF+2zUwa9ojWjP9+z2oBUwHK4e6vR/JxcZISuQzIQf7tSJwl7GDOWTVLGojlppz9AQ1Khkh1
+5+nFhn56uPdfKbprjhXsE8GfAaJ5O1yLPzUdOxrqnp2rXywoYGrRyVpZaG27rqz2UYF1vh6w/VGB
+Fp9Oj/7+Y2F0zyU0gt2cZR0STbre87K+ZfQ4b9Jrq8bO4qal/def5DIKhQ02wiaMt4Nr5Avxkywg
+upI06IAQBXGHz8S4/BeX4kOqE4xlB4frdEsiLBIGBvGGuX4AQ0qOX2KaOj4zsR358gEiENFFvUay
+2T7YVZEN4hYD/rBVZKJbCDCVQ00oossmkOMVPivjr7eoAJrIGVm4NrAu5cGb31IGrOBJlwhI6Ejn
+2s/v3EgjP45G8XD6Fh57FzEowykEwsdsc3BpRZrg901QXkg5tJdmqlAyWaLY2NOQX0JBNq+U07mP
+bpMiIpdxfeZTODLHsK3jlvqe7VHzOphj3Dwjg9NkMx6OJH6sFCTOB/D5hJuZo2w+2rbhgool1+uj
+SAB8nrn490s0Oy5rqbQtfEBU5G8/xAqMCwwe4CIWlf+vPIzEW5U2H+O6R7SDqyck4BFnkPsvJhwG
+Dmy40OxHmOLeDtzRT1fEjVESs2jcGvzCS+3D5LVknz2dfsDIF/nDXm8KKE4CZoLPJJcanOscfopN
+TOKIgKbg48YE8ktjuNskWK17Oqe2svexdEoEfDZy3B3RnFG387OcvO/WCRD2uVNmfZWdTyonMoJq
+3iW28n+XE/FL+KSHkfY/2q3LPFpOM7qIG3jbJrBBzwLKjOfAlYBx+oS4UWkOyHZmAkiJUepp5BgN
+nZBtwZYGdoKO3T/EX6QU0q26kKime3WL5UNCh9SWi3kWOdMvREnExtD1HIk+wL1nrJFk8cfSPBi/
+Ky/Jf5pOiQkXcpq59NdGzHFF2+KitXqIdqtIC2PaZJE/3MTFmMhrS5qRWjU2efWLmmreN57O3XVu
+ABXHc2La0RZ9Sf3BSumlrPTURE8TvWyEkFzmj64TTsD0k8O9mXtpx5sp8NSVQXumRwxv5d8EiVAB
+XhQB2IMUrPTKzCfUHyLoypvZA4+BabIZt2SeKBfqRWhhXfYAd8fwVCApNNCPqBZ21i7ukftsRmVA
+a8Edq/JNK/ruyuxcstUlRwQ8FFM0PHYcwjqcDfgCYe7kmPkDguAlTJqs+gFmA16EaUEk2LHAhh2p
+hTU8X8uqhLmyi3J8zKWGruD0QdZCjg+qejMkVV2tBzqdH/opkBzwgr57jPPQIGdwsrvrpGbrz97e
+YR5RhdXfqdyx601LIse4HmgXfYQDAqmLSQTvAnKXL00lu88C2Rqyxj5Jx40POYgUszi0fqYarMtG
+a/rQW98d8ZUh2ugAsIyqGXepVyHSwh+fPWjPQg2UNDFgDWzbsGToAbE5mgtcr5tYBnWwGa1ynKB4
+TxjyZndp+ZeUn1Dwq8aN1qk9G1/jKps0YocSlzy4o9lYNV3kkRtRoFFcq6Se+y17VrwtVaKTzz6w
+/nSjoyIwNr7M+x5ZZY1kVuTKfyyUiNt11xvqW1hTdMeh3s53cBhMbhXArR6kl3Qhagdh8LEI2qRZ
+Oxpuw66Y6eii9DXUNUAZh3yzOSB1F5OHUkjXEqzTbTO1H0kp0ti4SVD8iaxNEeRCevu3uZDxR94G
+bgOCA1QSqTl+wf6EbCjygQosiQ3CvswKJ0T4EGvb2iBXatrvAz6k4c88xU69dj13IBuiqcxiG0pn
+qDdh3tX5XpetZX4pRDh9b+umxD4e1TGZhn1kZB9qoN4ZyJW5XVJ9Wo47pNBkMZ3jsGr2g0Q4+clC
++GrAUvHC/EoV4zReaLdOnGttJ1GMdGFqBJEIdTt9icwheYhLiUoXOQG6VG0VWb/qG9P/PJiBtLZC
+FwYiFM/MkStTbTNX5tzIe3gnrnffpaX1UdUxKhISkar4AkaI3WwaEkWbWx9hVP4l0hghtnZaxdVD
+V5qY2vshVL+6sSucjZnOOaeXJeD3t+ItwlOUu+H0rUMeQBZxH08lqmv0uiR8GnZwnQir/T7x94d7
+HNwl0ax1Tuu1dEqnw7PghmAFVqWL2fSp9xB0oyOCTnGZMgNKssTLFudamSe3YzeP47Us2HHeDoCh
+un0yCoH5uVfmZ2PSOlwF1I1pn/OCKxIf5rDb05Clv56XHQIxI1PGfed2Otj2y0tKpxfTzh3AeQSv
+PYy0DsMzkUObZp6wCWUBNXS8YZX1oBYeQuy1etinTdJ1ePCN+EYXlRPvHHSRxnUeFyr5imUnje+C
+wbMBgtDDrbdQwqRDkk5G53ToAmu470PI79/JNCES2zfJ3F7jPi6rdTumvXHTpZOH/ZfNJ/Latu53
+ZkbyyY6O1SgfS/Do7bXXZTmid49nv+sDe/hDmGPWXJQFaUCbbAq7lgcSyvQyMq30pwnXKkGBbCLr
+gnZZ++s8KGlP0/4ZTOQrRi1R04VLLFpdT8ZFUozBB9uJzHBl69khyKWhV4MX2RzjjVtrDMQi7JSJ
+4NLWZBgUQUGbnt4HUUhzXnyVRekyN6SqZ3fSVU2+Hydbd5uOvj3Cb6p8ZAZwSeuwdc0fssOTs0r6
+qb5sQqBfgxtaBnr1IP09tXL67EVDdOuFdnwfmH2xs/Mgu7dyP8suvaJXw7psHZ6RzCd73rUVckjQ
+Canu7mSBpuSSiPMU8iGxNS4FjGkyd6M91Hrt9UVvobIoVbmpbVAzO4uMj3wzT8zO60anorpUdjZP
+mCpx7q9tOGvTNncsq7grTF2g1ehZQFctqR1ySyLkfDW0Ossu5NgNBqI0Z/mHoRGRSjpDLFsRL8mz
+aYzMCbdVAb6UuLAxyT/nsnL8fe97dc7zJz95Z4E9Ypujckw/JeqbiJSLmiwKvldU9zT9a4gHmEGf
+QNB1citAfPE2CvghzJYm7ITWXbIsuwAsD2LCxHmg2m/m1+1Uhu4GDf1ibyayqFg1dA/vUL6xz6hN
+hTot8xSHBIvYst9hali3nqxzyaGaX7e1sSk9WHwXzQ3t9fy+BR6FTqFKavKWI8UypkcygIn6DCAb
+TVNoA0/q5/pzlZr2I/GrbDMwWbcfBoBpNSFwLgEODrw0aj5R5IAWE73zh96HbFcOkuBkw/YGBHLo
+O3lMCE9b7tPOG2HOBAKalbDU+Ch0m2c7TZQIOZKxnYDK0Bz7+dj1eIM7AMYGKZTRn1jI+HtKlhBJ
+SnxYMcq3nLZGHpH2vGXqctOdYGpH1ER7s9+zBqePM0wS/OSd591Lt/bSTa27fl4Xbh18y/g8aZIg
+Q/7kx22DySLSLcFSnRoeiOYxwJT53XgT8V5hfKoTJGOFH7oPA6rJG6KJsi9DP8gfaJzcaOMA0PvK
+24tQNnH98mpEScZa6fYqIyjHzpc3yABf4aMGd8jTU9XdABb6jiBdFPgc0/NvTV0M3K+uaX+iSDTV
+tvdtuZ1tDXBllATdrXOTH7Mas1z/IUWzeS7rvkTd3giS8ZywxeyVd8VmMEYtCD0xop/EryF1HGo+
+GhSSYWutU2VqzFioQeAzUOIFo0zOQxN1A7hHNhHTDQBpMr+LpNUbSCHDsLLLBItkoMmz2da5pz62
+s+9oWLaLnyJY4AKrvuaQfTfOSzqqRMzYroeeGiW6xqzRl24RlYptWKzYjJU1ajsAD5j2bAS6JCOs
+yOwoiSAwdZit25abvkJxxrvkaF3sbYIyQFrUMWGIAy38ek1nl9OK0SLx26LLZ+s5CxKRN9R28w9z
+M6MtN0xtz1sd4Oi+oF3UfGnxpQSbMkTosoFygmrdR3AMg8FszGCTazYMrBkaAkYTLxmJ+D+77ewT
+fkhdseePrQI0PIA5DDClIDbntbBm8Sca0F1uh4J4nTvbwerCHjwxgYZMMQHapSUI/I10jG7SmCC4
+boy55E/XpYPQhwkCoJpk6XtGNB/MW9Ww6cCFE1fOhTU1qcAr0bHLqVSCkNAL9RhcAGiAzUH0avgp
+Fr6hcE2K4rmadM7WUzqzcV2UsQd4yZ/Uh7CFLYKnhcy/NTwJZFWsFdG861q7BB5CNPnNpEpRY9KM
+gSzVXiPNtS/G3Fgpa+6QW7q+8q/8IPF/s7/ji9OhzX68M4P6o0ERp1s1eFQfBgdR2Qqjc/KER8JT
+i+Cz/ZMVGmqCkUgUQWnXQgZp2skHY5jF8590SoOrcsS9vgUE6XzIWj3fzn0+fJpqFzyklRjFhT8X
+EQqiDv/W2iuCFA1QaPu7AgqSfamtKLgeK5K1Vh4apj++2RJYC78zHtcu+Z74QRqDli+rJgcEdEUR
+adIBtUf2/cAsl8SL7JdLMJBmyssSdGsynOJ1R+B5s2Y5Q2hVyhyZqYF9jdRLv+XvVLk7kI0GOWk/
+6wHDU1Yq5LuUUXnFQn45ae0TadFVN2KXqF1ie6ol2o6keHMa1sNggEDj5Qen0tSkvwsmPf5sAyH5
+iuD5aFHM9miDm7FHdzlAJ1rJyOWFJoMHbXBqLPqvsu/HH2bbMHAUEIW5a9KE1zIzWHHYSIrh4zCT
+B/Pg+JFbXFRBjM0XGAgKWK9HhlqWGOk2kmCajhkv9kgrV+3wu1mEfUMe8AOpBHJS0VRZMWPZL6Lk
+og3vUwTZz+YI9wxLN5vcFTtXeIPYSyzN0j1yPU5E3AwOcpVTSFDD79Rc7iNAx7jbtpGJYm0gcEms
+U9Fw0GFfFT+iIV5ggE3NzykTPfw2I8GfRISwNV1CjjKjyzINGMGZO5xkrHbBTVMMhbzBQcPlsM8N
+blKmgY6VesBVluSuJ7dsrZfvEACI3jnF7O+mEPo19D7L+uM1RfvjdN3hoLIjUE0A+8erKXi3ycY9
+qMm74dB0tQO+sCOkEl9BSJrqhRmFNbc+JIcGqRIHMkHmDOCV5ky/6aU2/Krm8c/oSylXSOqrnn1Q
+2fEEnJkG6fMqqoTBbEi8Oochm32x/0nVOZpuOIac84g0z7kjmzL1pz04uXYLaDdcxZPbfDYc3qHT
+N+VFXHHqdy137VUnqjQVWLg6hr4UTireNlaIJbIIynGb2eafBIk+8NjISMwVJDcwqx3OuAzB7qop
+NOcx5XVfTv+igyL7PzcqcKm+kS6CQu3gBykUjmycUkrfBYdkROeg0ENWA9qAbeVVZ8p9B6Wol9Eo
+afJCUEe1+c/by68HUQ6ZRd7UlLr+D5FItlThUAyILEd3/BFmlX2mdHvsNZRoXSjueYsQ7aCUWoZh
+W2WtzwZTlfaDFyKjhormb+FNjpeTNoN9XcY9cWreGeHJ+4EpKDrYd3kDGf9Q9TZ5hpuDLeM4WZKB
+TDl1up3QFF2PyNN3zag60qWU+gCuOtqdfqQHJV1u8tuRDx6pX+lMmMCScMtNVbyp7FQHd0wE432g
+Coz+Qziz2CrLTernQjS2vtRxi9b49K9YbuzbN51fgcJxCf2QEjP120dNomrFhpsvMGcNXUIK7ftF
+fn95epT3LxSjAKPhZfIQhZkHj5ehEydQfE/OYHVXrsUqjt73ylfD8CQd+1xEw/tbS3OT1wi1r6Rn
+7hzUbZmA3UA5XNTMP/1m9EuCdab6vcwGMrCNnFadAYNj5XY9gIXe2p++2vcfK81H5jTHEbbHxHpw
+tb6galQYfD5Nx/G1G8Hz9g4TFa7Ji9MjHbuv7KUtxGwoxVB4vH16dZA1zZjQyg3RcF/maQSanQMr
+hQVpcH4GhCn/SaL/Of5n9Lt6+OfNeC3MPDqig4IW1vrirj+4tZY5p4oTLhzR2Bh+hpNhwHtL0Za7
+eC4fmnDyzygujr2gKElo6iziXTiyby9xQCCDXyBiKm56lvVgrltchbLV5e70vTw6EGq7gBam4Kkd
+dBeT3htUobmXM+4YNm8dG+ZxVGdGOXb/6NZaiAgRhVnmwXo7SL+bs5hRuj52PdjewXyBIb7Z4uCt
+HlrcjmeaJ8deRqpO5JSgcGCKPfjAvYoC6uQvr4ilg8ehnBVA3yiSxrbPi7w4M50ctGpeJjWi5BcL
+gJCCOfXt06qCPu8RUvHqQ+P4nmCIokSWcSyaycJtS/ZH7NH0p9NP7sgczmplORjjUC3SIH476Bz6
+oOOqqlz5CVB9HnEIMGcKV06R7ohm9bHOOAL445RnZy73yNPED0OvBikHc9sh+4rKaBX7ii+9DXv/
+q21lVsqWxdIXhAf1u8iJy+3pSz3yki4zGko12o480uUHvdqYtEPQuSKm+lk4BgqRAbBVbzjm7vQo
+R56itD2+NvrOPvLrg5c0mMJosW0sQo3MGtkuk7a7d+DT4gnvpvBnZmH2XsVWnwZnru/oyKxDZGFR
+H/oHufHq+kI/nSjxIhGpMm1+aSed4RPMwuR+Qhj0g5UFvyN+bR2emUiPfCUMZ7LjodXHFR8sxg0d
+Ctn1jFtk9XjVljjGvNEwHgNcaGcmtCOXiMjKQc7FZEa6zcHqoHLTngfimlcVLTICqg1nP7rAe1ZJ
+6tiPdZU0XzIrOKe9OXKBL51x1JTowG3z4ALduuyDQPONkN7hbswGc/lCcN9jsfzLxJdlDggcZgA0
+RogA4Vu/fUfTpiuafuYCQ5LeF2jYSGAYwe2n39H3X8KiNyEJ0Mdojixkuc2v3hRTU5hLFKo4Q8X9
+fTZk8P7jVJ/ZHh4Zhc2Rxf8weSIgOJg9e+gPlJMDWPQSZGNtETMBS8Q789YfGYWzD511VnC8Lu7B
+w6EyqEcOOaCSJjop9yBXzWpTNQYEh7++aczLFr18dK68CQcftqMF4cUuCpp5MDE0LWazKh6/nR7k
+/aToogr2CZBboID877dPBjcNwcO0uygOutkVcyf8YzoJXB1AHHubxVE9fT095JEbiNCLwhzyKyaN
+wyQlyLRokHL20o7DWbmJ/XpXT+O4OT3KkQuTPtMiImFJoNHhKAOa/IjjP/qSABhslcfyBilduyN/
+Jl4TPHNOmnh8vAX7+GIEOFzXtG32EjBiuXJzg16okTcEHJUhTsBtaqbVYz82zs/Tl3j0Ri6ibhYZ
+FA/vygGFmQTOokycYpDpGHCiTV5189+/70CRQTRBRmbWPTx0UHqlbD2yvvS5GT74I8HHpFJNZ7w8
+y3v29miDIMNlJcFHFHD8OJghFvR4hMumWDkI/XdxPrZrJ9UD9OUWss0AIjvLolFtMGoW+9O38ciT
+Y7eFlNzFuUGg5cG0oRMzUQq51qryRPRlkXt8mftAtLu8opy3cMCByJwe8v2ygjiHB8ZxAMMIHre3
+X1082HiyvbFYhU45793etr7lBgCSG8OmZABLXTsWFdmYDsvpgY+8MngbYFBwBuH7OzQX4QJi/1qR
+zKDjDpO0K6AS1vXw19tYLg8THt4swF8s9G8vr6pH2QeQyeEK+uWefiWaCKSAkk8hzwv3zAt67NVZ
+lmakXdxRBOZvR+tZ1AB7IgXJl+yQ1BNLVycxBPAGmQKIi6Zbl0bZngbK9PHvb6fkNqK1IrKNc8Lb
+oWWiFb1vt6DV4NLxKiTO48nyzqyex15QghvZMvOJcFI9uJ0042oMfzyqwlvwPqVhfHNGZKpTJtTF
+aHjn4gyXX334LS4HeUk9aTE2HawJ89wC8+pR5rhF7H6wJ4GqyffSpaIUJ2Z75pV8saC8G45Kw7IF
+4a+HcrlknLIwjZ0CRneoh1WDeKdftVUw5heuNeXlts/IhDe10/gUfqoaqCyCXQjMCN3O/JYjd3qR
+j3Ek4kazvB88z5msHY8sBmZUtOxr2oi1nnapDTVRRkVxZoU6FJGx2vLmcHrFUbhUBA5FZMWQAci0
+KYKnVhgBcCuKMKWTBHWnXsf4g4hUAqJAekPt4iw3qW19thRnOTDzRLGQDZe55U+LlJvxIh8Nsr0w
+68Omw8+PyCXkeHXmQzt0nb78YIEznL2+idTu0Ew0FkEceSb4hoAvutgmujNvhzF39kjFy4vQjxY5
+lmr3MVwBzBaEi9Bwm6T10eHn9me+iuO/Bhta4Dke68bhe5N6Xa5NGqCrcJ5Rf6FISV7cMsJdkzff
+3fP2GpfmoOkUARzf1DnROYaefISIqfl30tx/7syr3+K8nQhipNopGuCF0Qb2Cftkvh4IqDrzAI69
+nrwvmFCpVjHpHMQzVhPwQCkYJepUvBZN0P4GGpPd6taMrghxGc98DkdWC7ZpHp8kizJq+eWfv9q2
+C28miA6M0Eq6jto2xoyQdSqGM/fuyHTDKIvjlZMWj/LgoxvRWOZjzxEEGYn6GqbwdpWyo+84nM/t
+Mo5eEMc5HEi+advmwWPSKTQPmudUPGqZbcKGhlEDLefMXuboKOAVmc2oqrwX4EYyrG38aaibosTf
+leMo+g2HOHBLp5efY3eOFFhWbfoMS1nj7fMh1k/4eDwZCPThDm9BupGVlo81bLanfzOUS5F22bPj
+Rnk7VNGOLZocHlI9dvW9H3boSzIC9Bb99pA+/4vBkBFT3GP3Di/97WCiwMXjLXkaGODiXd93OIpQ
+wGxAOBS700Mde1bs/lhbcS2yeTh4+RYCktciEuMw4haPmZn4d56v/TNz1bEPF2KAXApPLDCHu9sy
+1x4tS967EgWtSZr0kCIZSoZPMbWvXd2H2eb0ZR17MygjYkETIFfx8by9g04HIRHyNRuTKkNSPBfm
+c5OiZ+DIEJ95WO+vjUIMZgG5WJADvuO3Qw3CCnIwmkSgVoB54lA9Vn5zhfzOuyA9TZ+5sCOj+Yj3
+MQsF7FDwehyM1juQwVPiZ9BVeleLYPQjSiY4f1Y/P4QqDs9sZd+/H0RsWIG7bE4469sH4yW4ygQJ
+hEhKSJ36Sugm8hzHHj6cflxHR8E+wmfMOc47nJcMQ3sjNBvsq3WUff8f9s5juW4lW9OvUtFzVMCb
+iO4ebGBbUqITRZEThCy8SZgEEm/Tz9Iv1h9Y994Wt1hicH4nFVVxiic3gDQr1/rX9wMo6T4CSHnL
+d/eVd7cGWFSQuHdwep99KQoBS9L6iLlqqeS1YcReCxUvFye7mtwHDD/LX+9+LKYg7Sp0zT4X0F5+
+LMstO9So3DZowuceUJk/stp7ZzMwRy9XDUhV64ZOwfU8TWJqYwxFSnJzbCycPIAOauSt7TrEGhU7
+G51v9sZq/vNrsa+jscebGXoCsouXjyVgRjlKUu9TpRgvvSWPP+jjZE3v3t09DCE8WsQ9dneu3i+H
+8SvNkH6Ap0xqDQ3g6+rn0gLfhfYTv/eBXORWHsuJ27e53r5fjpQg99VGXbQbQ6jssWq0Fpeo9K3M
+/5+BPsNw7SWeCNBE0anxchgPqIXwPfAjwC8tgarFz62LSU2F9UHiTbZyvwKt2OrCwcIzRxUXXMex
+jTKxNsSb1bg/PiI/Zt1CuPizm1D5e/ljSi5UGSCvdqO6UjaA+qz00sZ87b2xAEcLXaNMTDZIl07K
+l8PoilKmvWYLG2/yo8CaftaWnhye19l/M8p/Y5TTB78muP49o/z6a/d//8/viPL/+Iv/RArhpAJ8
+hGKoQ4oAV1+C5/9ElPv/XMNb2kIt3XXXC85/IYXMf66Z0bWAalN15/NZ/59QHvzTp0XfYCpTU+KP
+nPcAhc6mI71pz+kSIB7mWtfwzvZmib4oodkOp05Tk5Ea0B1TBxu2v72RtwvC/xrFAoROKgG0wLmE
+p4n7Fo1s1W9QDgE4HzVAtPVcPiWcPhG9hdobBeg/n4qDk7fn66vpDWXhl7MfpzbSbZhU022Ayydg
+yZnUnjTe2ChfGwUIEukKthc+01lsCuE1yzudenNup+YD2bzqOLTzEr333TlEbmz70F58iCRnK7mj
+FpQOHhTKGYdSD2rhjPS26BwHfk2g0KUb2EN8+vuY61f/LTXC9yLiXs9rSupM2/O4IKgtAbhMdeQC
+a/OEWyc9PH2Rc9z47huP98pQbE821/o1z0vn58tPZbaV3lQ4+22aEpdDGdTLDsc/HI3zqnxjTzyL
+Q9anoo2eFcX5tl4mzmYFCuna12rYrTLr8yOtSu7BdTAOQjoQXE20Mf1re/y3MohX5seL8VjDv19j
+FQTkxpWM19XG0h4qI261bS7xf3n316KnnLyIY65mB+dRflz5CzhmR5D2FKkMASjlKhqycXlC8y3e
+GOy1l/isv4LDo1O3OZv0gYD90OdKkGAxi2iUnfkxdUlaIZZQkTu/H6jER2MvpCeYdQZ+YX3Jv+UC
+gL3GNMBAATfK0d7QsWNus8GExc295v3r2UV2ROesS72e+vL5UJkGOslgqBSUkd3Fzg5rruSNCX+W
+g3+ehb+P8seO67Vdb/BADqjPNPWSvV8o8ZlYzL7EVFV87vzxy/snyO9Drt/0t3doaI5TaDPqRNXp
+ZTSYJazrfKGZEAXyp78Ptb6js52DoINMP5HN2hJ/tpxxE0y7BdviTQvV5bpoYF/jGGq9r+L6r3fI
+ZGcxA2kipnv5QLET23B0PQEuiWZNa27cXSYbd//3Z3ltqgPz5mBeT1vgMS9HoSM86/BnxvGqo0gf
++mA/TqVbxb+qtk8/BexXwxuL67XNkFfHdkgDPIXRs8WFVJqbi0uMOlDv20O0e6S+/Y2+Xm/790d7
+7TNR3tVJsLnrrexsRnCbodfeYctIYzinU9X7kY2RwBsL6jxVyndCHbLW92FAcZCcVxBSzc/G0sHU
+Vli4Hfa1NYXOAsO9bdtkX0+rk7vr7GNas6mS0JS0EZK2ykXHzPm9z8sVF27dijVy1+nz8lMG8NCl
+lJwyRo39900Ncr8/ptZYvVXDMNZN/eUCWLW3xDpI0Rznj37/uU/81ABLhS1FWtAgbMqdEK31qZHd
+h8TVsFalyr0lAW+Q+qETlCoE0n0vHIwhOI6Qq94Ihf7cbrguGqzIlQykU8Z5+eSTIj7S5Cw2re5P
+1mZKgoomgWFKrAj1ubmiwqV7248DhNu/v/NXRzZXpBkBLu/97B6pZBssyWoTM6WGjMakxHFXxBp1
+uWSjgscGhH709xH/nNU8628jni1YZVozLXOcTbOF6S9QehzNaHx891xiFD4wL86linq+LfgeFlxE
+lLQyK7+j64LmGmkD3Pz7s/y5+TAKZD0dHiO0xPPEZ93AcOo9pLxFEri3DR0v2D6jsNLHMv82ZN2y
++/t4r30tpux654BryWH7cp4g117oLeBYouBm0ygnfO3CjHXQ337VfwDVHAw48hIFvvGcb43rvxzX
+Hamui8YW+JvW3UUOZxdv0nH5QJtpdzEiI4KBnRtvbH+vvdw12oTtRwAPtuXloDPeGQIlCC83M5wv
+9BDN49YMJKzpOqBhLUV/+PD31/vnzk6hAeEhqXkia4hKL0ccaResnT4B/B1DgXSF6CKUh9jK1PP7
+w05CaSIY6g2o89C6vByqoM2ymFybDMM04lZTLONuHpy3gulX1hqyiTVDRJkGKcH5vpKYbj+TLKcz
+Ck5yaGVe4dJt0GFY8fc398q3ejHQ2daN83DT2JhlbjSvnehdox5d5N6NLgoHPfpbqsb15bzcvtd7
+NQI/ZgelrtVQ7PdQiXWclWm6AH+Wen9Kfa3aN3WlQ/Z3/G3ruRI7P03D01gBHH//UiBnbpt0vbor
+VfPsw3lA4pcC66PNog3YIQnHxL/FHEPAJuII6BDn5DaN35IxvDIzV1ASJwRhAPPGfPnE3EncwTIm
+4lHw6pvWCuiMM3K8wnWAHH//lK+s9eD5rgw6F+XEee7LBwvQ20lLQJU28sIdxXisINKcMqzdDkPs
+0W1biv7dwDrSfj5NCyaBCJ1M56WWLhXmMmDTvrFG10yQaGT+isHoT05jjR/ntR+r9oMeOoTM3vii
+fyySZ+YzInjDNjkyzpcijVN1KwQ7SkI32MbUa2tnGp58N2IIOSDJTSouVOX+2Fu6GAuPaWHOLtlg
+rBAOkJ5cccuD1Xr1G0XT156I3YXwEzAxA56tD1BlJCvbAYILjU6k8UdteQLTX77VnfHHrOTNrRVn
+PhmZAW6AL2dlhke6P+ljy6yE9dq3yr7Qy7E6inns3zj5XhsKXQFkb7KlHLRnQw0TtfymqhhKJFSq
+JATpdlGgRHR1+Pv8f+3lEQuxBAwcl43zM1ZUfopDZksi2tYz6trEuumUiu27R1mPGZYXLw/I6xqh
+/nbbwxM3DeCtsYWtpnW626dYR+Cj9P5RVn0j027VQARn2waryPCTMkZ5UOCAS+ZT+yZHnF/eWEGv
+fBwkB6tamEIO58z6z397GM+sMBNJihXyMsa7oQAbUVgyD0mHvCG5fuXjvBjpLCaoGyXiReUthH75
+mXKBta2x+Hljrv1xmFGFJTXJA4F1pPvn7K0ZmDZUDXW9jeE2+qXIZ3FXWVNzDBLHXjbNNM/7v3+m
+8y5FkoaMiGsmMi6UhggqX77ARZR5iUqk2dhJwAsURhpBVwQQHUggJKkTp4d6lskWU8RgT0+j+UtT
+2ql36naXWlNx+/ef89pL5kOu3XTkZhGPvvw1qe6khj8zawovffJGTcP22pVv5PleGwQsu7lqIMic
+nr9kABELUmIHvmzWYVqpJiQ7UU9b9zsFcs/vlmrc2uVEQxC9qS+fJrYL5PGKyVnnuPSgJXNXRN6O
+1oNDPWhvwfdfeyw07EwehMWU5872qXHuUW7Kpt14gxNfFFKJY8sOGr3/CwHIo37qcmbBVn75TF7p
+dZZK2A3xPukumzGttrODjdq7R1kpyqg1uXKQyDl7cwX+OUWQIUxRk5d+LKfAxvvaSd+bJkLmRvGE
+PNRaSyGJ+PJZ/EVqg7bO/SKzqg+Vwp24xV7kjf32zyzHOgytZ6sfAjXh55TAb3tU5S4NDlkeerox
+zi415Vs7Q2AGNQHScnX50Z+c25ZWO+a6F1+Q6z65Qdu+cbb8EVvxI5CCWpQI1uaN8wvGInS8cRJ4
+GIsrTdiTc9rX1/bs6PLSGSccmucpKLNjJymav3EUvLKpcRMA1oobHvUJ5+zAoW3fAXsTQMADBlyE
+qQ54ZGqzS8vGEGXsY/7z/bOH/hTyz8gxeOnnK8H05mrR2UXsNMXSqLfwa6+wY/77KH8ePeBKkZ7T
+6LMqt86vAuSbk7nz+KxummEv4XvNUdWLd7RjbNP/PtSfb5ChMB2mLsyIaDNfTlT2SlfvHN5gUziZ
+FqkG/hgwrNS4D3rL+ZHSVh2/8XRroPbiokMvHCuPUI4OGVbg2TtMC+HMicDdFdaVFsFqdD6LcVq+
+idErI8OozW+kQOaLFgPYQ9WZ/dPfn/jP6Urln9sLOgZa1Kg+vnximMYw9yY8NHQaFqLS9X7QW/zk
+1CSnBOSnzWi/FVH+uX2uI3JhpZJGhvX8zt9PWZ6ZhgB2g6vU3hLjeGCpvCWVfGXSgCoiliQAI3WD
+e/SLeIWWPq+osVOkESMWOwdgxhAGsZF+QqRkvcXCZiqefUUSa6vynBIxAQ+qjbPXaEiawLABRJRZ
+2aV2GNmuf2qpodXhqPL+btbjwNjMgamCrZp91V7C+GutPaG9yDZUyRoRLRqWrfz9ghIa9yrzkrqf
+JkOiV4f2L7zZ5TGwlrLYTzG1ztPk9062860eh/WVvgcDJC9i68SkVskpnqa+PNK8ajSRB7s5PSQY
+tDmHtZA07nsRjPV1apd9i2VfXGBxXOQYWGEs1vngEGPjseXwKcKupH8l7KeVCd94K+2mcOGw3Tq4
+l00bz8dD+KbXK6OM/CZJDFCQcAfjC3+Kocv4VTGrPdCWHFoEhsk/sCmFhACsj1hHNzJjOdnT8EwG
+kbBXBF8zDrkZOzLy+mI4TnPvZ5Gdm0ByEuzRwF/2CcwhdEpcDRQ57Wxr+E3XbWFo5t2hxBR2hvPr
+JKCq4aOhADLNJdhM40gMgPZFr08aZr42PwELhD1IrNnFUcrKq7CBYPcTCKH1OC8VHbFjSyQX2Wll
+6BtIB8O0dvhP1Z7SmMknXBryIACbYJvOkHpliJVuoO8kSUEEkTLIktPozZ5DDDuBGNKnJZ52fIEK
+JqKOjWuIB2zi78CzwFYrpsXF5h7mTrWh6IAkxWTtN9tRNpkPR6bqFPgiaEjAjJZnsNHyDDmyn4FH
+haN6eUw0uiBWOh5QpJIu8xVnGMseFVlX5zCu+r4M/b4hIBIrW2kOcG3b4uAJcslojAn8UpoMMuLy
+DJUJ9wF1CXKGt9PjdQm4qVaAIANcjh6ylexUTfYA9iQvF7XLnuFPWVnHXwfgbjbe5IAV8V5bUVEp
+nWunPI/rX55Q3b1amVIp1LwZ6t6KmrKM2qvDqgi8bTEKQ2yHlUtldRliT1Ky5ZPrKG7tTW0GH5fC
+aD4WpZ9ae9VZS4VEfqjKEDLTCr/i2OcStzKxlmc81hJ76SN0UqBZcoSfpfy8/AJSz7msV7pW9Qza
+Sp+hW+BZZ64AK4pLKGO6tsmuYiZmxMC6TIW/Y9EEnorKleZViho3SOzOPKS2K+/L8izQX0At8xvw
+HGrcg7YGDjY8g8LagDbqbbPIzt04zzAxCXW8hy0FY2xuk/SXs6zgMcrl82X8jCPr0jn3wg4KDiZt
+1lQVO2ell0EbBMuI9ThQs2pY6j3NZnV6J5+xZ17emxlUzhWHRp3W+pUFFekq+xmYpjViBGKGLwYW
+3PbY3+L8B16Ny4954zqJeMgsicZsfEaxLTDr2q1IVkSb84xr03MNdBsrpbya21bHn3plu9XPmLdM
+10C+aTn0t9mq9Z8FjG9gpUvXdV/APgXzVyJxp7pI43xIdnOF4PWE27hoLzWnCMpbs8hKcWnkjRNf
+C5s+kMtEH9ovi22o9HNSByL+LgckrnemAFe44wv53o3w2DoPdtwWKKv1enJPQ6Z1oIFYJ05U6jgo
+X9TSNPG9LGJnPHVN4EwR7AloTDH0WCLqsnAT48ihM3f7DuNSd1cIL433Qqvin7kVTzrw8CGNI93q
++mrnwZ8EkoiDKlWiJJuDb6NRGxplfk7s5BAbGB3c0N9h2ictJ1rfBbGdu9t5xhT4GMQwBK9BnlXu
+l3UiWD8zW8466KGmw4IWeeKkzzcFAWL9UEH5zO9qtYjlxAlgk+O357gsPseJP+g1VqQ9bjg4uXC4
+IWx0OuyuD3MztfEM69PPu180tidgxOAvWxfZXCq+/KRn7JzCKfICW3Gf9ofGl5hP485rxbsJI7Ek
+1PGW6qJEWjxUY9ol2QM76WbzQx93bX0BamEM2CKb1r35F1mJp2UjJlgxg41Y2WmYQ6c1sW0+NA92
+EczmTlmFWj4XY5IA12zx09zq5PVINKZJMX5wDW8072ZuH6a9oU/T9C+7ghafHV3I/hR2dlB1V4vf
+U/SVRaXN29bPYtzIeXP4PXNl+pRY3nyle1N7Z8UGzV+tRbvApql69zuUZCKXKXZIocIPwRoMD6j4
+cbGWfsKqvmSpYlSuNgTyLWRbqZv1JVpYaayWVD4+jo6hXeP54mhR4Y8046jM1FZCWjo9pJoxBNth
+vfpti7hMPpaayD+mpBd1XK2a/EvllXQxIlfvfs789RIaVUOajv7ylPdjx0nBXUQgvLIRgX8l0VJ2
+H5begykKnHfJQstrqf9yVo8OvptzcKXANwfHWjP826Y0EyzBUjmqzYgh+pUj6Z2AfJGySXttIf1T
+7OOzFqo+r3/YmL3jO13X4keOOfxVApmvj2QZj6DD5OLAupya6nNamy5c4Vg0X4DXj2LXlXlz12hO
+Zm1QhQL3KYOkvDY8NXucTE1ZoUFaerqQMiNeQi83K6yfhrH4iegkVWFe+nIipMNkNcx6qzSfnLLt
+zY2uEvExiGvMHkwtG2fcjjwvD3UCwnsuuzRDNqoy7wC5TcWuSKsMe+sgKcqtPZr9N9/CGnMjvWUG
++diI5GnGKhnNORPrwl1U+2hz8YE7UqkkCIFHdI+Lb2ifcZQGd+IuSLY3MZ73P6QxWLeWKeYf2Jmm
+3+O4Ce7wfLAeLZFkdjilifbLGqbxmqRG+W2Q8B430Geg2rULDBVlyeB7oJVZsueTZY923y7fOsxc
+T3aZG+imbL//ESxz853CD6YOtjJp1CPssVawd9aDf9R8cQHgN5j2unK8zyDYU2NbjsCiw7lvyMQU
+WQO7W1pTySQZ6sXc4s4wahszhiO7B/mVf8qmxrE3c9I43/rBGZNdnVtA7BoSf3aowe0BuDoKHWMH
+Il8voraVfXQAUU4HXD3MFHd02oiwsE0K97JaFKVZsu/BxBHfA9YeEwcMHMXAUj5BlCtFuLK38czO
+lDsZkG1Nj48IPQYD3LzP26s4j1NzY6uikeEQx6YJ+BwZV2SDahwx/FHViFevR/Tj0lT+NYCocJFY
+zUJbnddDT1pMfXWVLxwr3ZjYrD8Jx5snaJfwNjc1paCd4wBFwEqnKkxcU/1ql9sl/9USGezBOnPl
+k5UbCU7MBBsHO4knkwUSTxflOE8PoHWDJgyMsr2ChetDHYFVDJ2mH91hZzW9zh0vWIqABsS+UWEq
+McwC9mKkeL9Sc3K2y1i1t04+6pscpiVE6iLJjXBytXzYVLOHhTO0P/d61HgxR8cDignm1AqS0DZy
+73FO0jWnqGtO+1Esunlokrxyjo1VzjF/rtkyKr3RWDYWNy65YW/hXOiXzC53HHvaleli6h156dSf
+jIxL/D6fXCICH1H9xjKBE24gQiePaSI8I7IKLyi2LFI8tseAczdyvYwgKK5r7yIocw9aPIlFGiz1
+dC7DHEHj18GW+bSTQWfCCenThepPUBc/lSMkFvdjntxYs+59tTUDCzHEpfEUuRTFvywYrbahXjv6
+sMNBPbO4BRTDR4sWri+TmQYEHLiC31UQSGqIj5g0wvgdpRNCBMcTO3A6gfvT3Dmf0zn16O22cuey
+8+vipo4RD4apJZPbxUuIflvc9C5mGfODZJnk2LcPQ/oAqCYwI7exkxlnbDtAPZvO2bUSpvk0Z/CA
+cHga5N2gWwnbtx/kWVjHUi/hYxv2fWfq6on+mBiqoSeBdZM7B4KKOVxpbDDbYE+drYlEiikD/XL2
+Xcykv+eGBYdfEpymmxpUDzc2m17ZcBljuIz+WCY/6jpeyZ+pb7a7hg8U7Gz8iUBxSjC9EW+yuuVy
+LL4XOtckjKBpmdyp1u37Q+CVQDTxdAIO2Y65RcTSdaXaKVVTonB7Zd6CD024PgDI9nce5rdHHmv4
+hQkgvaELOArV5IO3WQav+anX+vLN7z1gDkj27DmyUs/tozZvsYUnAc1qNFE2cIzPdrIFmx7cGMq2
+PpnDwuZApJHZEbJJ51OnfGKQAVOpCKpmfKOrPmMXjpvqEAxdVX4wYOx34dhK7WNbcIvdgAzOjqoM
+/ORQKJd7Z65a2L9zGutuaPmFcYot1IqbarHXqeEP7vWUzt693woL+zico39KPZ/uxmYIHsDPpiml
+ml5e5GkJA1TVtndnZu38yy1yOH7FELs3ktj9g5rmgESUyXIdMfJOQ5270D04PtRpBcWAmzlPaxFm
+s9b8XNJ+uZW4L/SbBCTqA1rbwQoDs5B3tCNOTyZmUzD0iVqO/hJ3/okTUPkbDiIT8CyXxmaPtzbH
+1gLG1wyXoehh/dUxZq909zef8qXIxSHBmIZ10CJB3ZhlkMPJzjLpR60xxl9iNYvbxAY6jhZb1ipS
+CHPp+l0wbA19t6vh6QCWKEOLXD5W0yyVhPmZz7uyS4MnM6gzbVOlyhoOc5oFl8jA2vRbCfvR3S12
+uyYJMCu4RaSMyqjoM2iYZOtAzHaD3k1bX5B/3iKvCZyRYj6Vj0CFPlV+uYxAwWWtVwh3CsLxo4gx
+CCUczqcP2jKO3WEuZNztLc11xB3xdKBT5Bxyd4dK1Da3ZawjZV9KmCgVJiTqYZzGguxAgIYmVHpK
+6nPurSEHxmjo8sh1vC3pF3bkp66ZzGzLZLPisIxp3AuBw3HZwgILnxa9MFxtszQJ4Eb805M8Iu3v
+JJd12zRiB3y9di8q3+YoRRXrjJdm61VmCFIO3qhNm1qydxpNPIwaNGxiBT/g+oKNwSNBdvEJTKNt
+bjKbRYyFWkdoSKtG9dmdpZdGIu9VuUnYvzm344IIWdGND90c0ePTZJldEXopui9WQe1/dotkKaMV
+ozuGRpnO9kWwjO0CdNuG4iV8VZq7MfekCJ2gin/geT3kYWlPnhNSwoiPi5dhu4PzWt5dGNNaQwQI
+ljsht2/LCen2TL/05qiRt8goFHC2cJT7UVKXuVmCzu6NxfLBorXAxrEY0ZplKvr7gvtFfXxOH/53
+58nvnSfohEib/vvOkw9fh+Yf+67p++YfP5p/3I3lizaUf/35f7ShOPo/MaNF3EU/KUUXyFK/t6Gs
+tSvSsNA50Gmug/6Xs7X3T5KzHGFoCOmo8NZaWt+MQ/q//odm2nS2gIoi76/TarcWmv/3/3whju/P
+/vcLZuBzXfq3jDT4PtKltKFg/gS5DHzHy9RpbGEhEVtIBbkIOBMBgG7d9zgEjzsjn/UOwE03/pST
+UF+IiPRQ92tzwA9FGMfWnOaw8WrjzrbUHJlJpw71lF9oym4fDHw9viedX1wX5Th8HEYT91+UbEdQ
+9tNaGk/lTWpzX9iwRwM9oiwVKU+H6JzF0nhStitvg1ZOd3Ne1Q9ksNIdOw5eUUVBTybUhE2d0tbI
+ZdzW9xa9Xfe2WXDhw2Sm301jz56oe0lhhNzmvQezHro8rL1luBzHrHgkSU+GVlb5cshS0fygmMXv
+Fq33mGmDF1GduG2CgEPfXur5k4/e9L6XWfDRXub61Lh4plCPceCdTYZ2YbOxEi0D/G+iuE/ccMKg
+41uRjP6eNKF24RbKvhIVjRwEatYjEtZ8PCaLAQrCHoTmfunFOIMcC6xQB+wbTvW8ZkIF1xSb+tWV
+LYv5U9VL837UXKKXZmAr0OMZCvKUT7wxf1qSH/DLE4v9bG4ucQKwuICXI/DlHCksh6G1cqUhFW2T
+ppo/6dqU/GiK9QGZKmO1B4go7qbBx2TBnudvU0YuYYebBenqNLCXi2ny4Tsng2MkJGoVzTcwIwAl
+FzTyR03K+yAvXGOJZBZU1ocg3/qZkfyILTyAQoWFttr2bTJkIRYU7RDqmj2dptYA4yxT6zHJVHzl
+T4lqwhVmc01TJ81zksMUhm/Z4x464hTCh0wQ87DjESC1D4ry+yaHCkvtDd/z64GOKrktMf88Kdtp
+k5AWsD4qaqO5icfE/T7hGAII2BZwu2cjHPrqe6aVV2CUlIp8vzEOYBbImiW2Xh1R9gZXfmmln0fT
+G/bN7Cf3XC2xXB+SYsGEpDO80NHidgTOMMZHsNbWx85wmks3a72bNO/SY23OPzU75kJZTvnD7JOC
+BYVFBG1VwWMrbPc+ngx7ArtiifueUAu/Xq18yCbbSo8+CfkfTSwmMku2UV+6ptCeglkF2kEvXdhg
+/VDXSInrpdo2ie1/aGomKpdkZeA8Yedfp3Qs/avGmfiacpGct9Y4frGwdLhKsxLdbMIVdglHel/T
+bWEQ2VIkc0HFCzu+IkVDor4EMl5uYWn7yUl38HzeDL2d5zuv8HPv1NvS3/vu6jykj0Y/X+j0FEGL
+1gffO06us2zp0+12rq+RlZiDeW8E6TB/iN2hnu+mfED1xpRIw4Dk/DV0z4GfmDu4Hc1VPZ6WrDG3
+ee3kXI3tPNkupZmzlDnivnbLXMLsJhomehaGPd+0lWX/AFMNWXwolyBCFG3cUxHy9zln7X5ZnA0x
+qx8iuev5vziZs6X+kZJ8KA1vM0HArfj3Jb75Scfx4gY2U7t13PiXM3lu+tDgYp5SkZPIxZl9cXIN
+9K4ytkLa1lMz1OtimGMw5PAR/D2nBusSrwUnuZ3q1Z3J97J+2k5mYz02k89OQaUqm6PEZJmSkcsz
+N4pnv8DpBPVYQXauSH74JAj9g0Pzr79bHJmbUVEUWoFxGEf8ESgdMjNX1dVw5WbNjT4sfghq/YtW
+BqfGEuq2WDwyqG3/VCex+ErzUHBKGuwdQmt2D2tvgL6RjoiLWzMQ3l2X5tghFCvqxfdr+7Yzg53n
+KvKRbfZLBFyedU0V3+lbI8qjM2QfcBOsv4xKn0jeVTqM/IKM/0JNqve3E9Vb47LQUoz3ejaLbF8N
+fRFz7fWDZdqk47i4Ya03JddU8E3UG9wsSKNAddS24tkhcBaJ9yFz28GMhnaZvS33dI/ClCII9jPT
+3Q+zLuvv/HMdr43Ctj/rFk4lCTY4h6krdwZlIOQcrc+FJiPP4YqiScI0dQqc1UoluDGzSV06CTOG
+BIHUD63yhEYpx2jbHdHpLhAaZODM0XRyurIZn6ZFtMGh0AHLbQohvPkj7uQ73RoPqVzszVAHcygn
+46dK/NB1510Nsnbe947dOvuRuMzbL/nXrlk+g5qfc36XZqljTPL1ikugVp+S2Rd7UbTmvTEZRRWS
+DtfcvZgHrtVy6vvqaLZaHBrDWh0sGvdycoes2Vioie6VavWWJtKp2eFexoqy+iuSUkURAkj3Q1/k
+3XgRayJJkLFjrrMQGEIFiCnGYmkGnfaqzDPO5BR9nHnFvbnQ96u93qms7NnYjVNl4WvsDgHaUdu8
+TmxVXowOt/GtyLrK2qrSc4vQaAdATjbkpLBLU3XbCG352WFos8dPIb3XMrdZTnIce3fvE8Zeuvok
+fgqdEakJT+63vhhT6xineHZ9gL9thCU6yvRa+JQFPzZeMy9hlnatHtZNlTW7rOrkrRjK2TomboeE
+NctFnbGte63C00QZ3zSqMmJflNlqPFUsOla6iWT/ncpU3y1Fm9z2Tu4vNxPVFm6VjmzH0E9FfEiq
+PPhGo2zM4u3aLtejrhVJd0gyvHcv29ZpSetpaksB0wq9YJhBNorVNaDEHvxQEIf32hZWhdV/R/xY
+yws/H9g829pL7KinLSSj4Ehhx+wQPto4p/VRM3t23H/mcPEA6DeuMX+kYpph4Y6svY0SrSI0aydv
+Nklm4KfGK+7j4X60gp6MSC73XGtEFVmd41LNTPMhjSbqatN1UnVZsRlc1V7IbpAVx6rClgjcVBuH
+i2bYEjvwKtg1DfbSkaJoyZk5t662y7OhCy7bpca8dazSoItwnJl31Inww8L+Sm3gFBQcTDE5U5Cw
+Q3vZ5G52E0gebDtTrl4IVSzUzGjGk0chc0QAglQKSjj+rR1Gh4HCslUkJWYVgxAf49Eshn2ger25
+nDHtye+tWGjiFAxTdtAKDjmqiEa8SbCooZ/OxybtGJQxYVNDoeCT7krnuxiMeQwLm5BiW2OlyC1U
+ZIG9RRTXUjg2DGzdZXwkg6YeKsN2DIJSRVyCYkJizQsV2NtPVuVjHKA3LLA0yEFyeiOdYdjM1O2V
+Xqvyk0TRnHO5RFB1oNUcemHiY85GXZZKZp5PEeZMxloLj91TIeFmAapwCncra/JfEQlm8v9dW7b6
+1krnKcMHR20bIftqA4KadDGFcTBvtP2eqHPqh25mt0O6qJJLNij1lCfEw/su1dWpRxjsRsxoSpG+
++O47+bHFr3HOOVQaVzHxnV1suXt9qO5M9hlNQtjJnZtkMD+j4vnRTemh07Wo8sxLXfmnPGuzTdd7
+eD3V5d7L5RMi3aOopmicy69u0z/4tfug7P7OcqwYEF5DE4KzRFpJno3mYRWijw01Ml2mxMxDcluW
+6taR2SUc350/fh+67ClV3vfeUKeOAu3R6Xw2YI3eocuyNTpxVA2icSmXCPG2SK+HqQt0ilL0OH5y
+AF81pIZDvelvZ2pKTjTI8ktRZcyKZNQiZ2J2FnjbbBYvkG60GAgsyd8MqePekMzKcHMZ3SQkZ47p
+S9vgcPZJN5R7LegusKOad5we6abgb6ppQL6lcQHI70GBf6vyRN3lXjr8kiMexyenzc0knHoNfC5i
+9//H3nlst41ma/te/jm8kMPgnyAxiaSoLE2wZNlCzhlXfx6oXKdtVR979byrq9qURRLAl/feb3jU
+Z2t8q9RWq51oWpKRWh9zzx557mg7DmlGcU4pU3FrSTgkOuPSxIXbdcr0qJKNNrxoKNXUzaRpuep4
+5thPzXSS97M1C8m2Rux4pOaLhBXlBXyzN4ZQeLqU7NtFq+FFqAuCFoiG9B3GQ5yh/Zn9o3MxmQ5f
+5TIKTHpJIc6q6zAPj2BVRMxp9DmaUcSyegP/bVH8lqQKQpRNIEnRfZdk6a4vqka4knIJZbd6Qmt6
+8998QhO/db8kBDSa+3f5hOvvTfGaf+3fyn/zsR95BNn6ApBYBWxkrJo+H14YP+QsVOkLMmprFoFj
+FZ4KOgH8jzwCyQfMqeHrEtgj+szLf6URrC84PhD0YyxDeoKwX/9P0ggfgPB/ZRFAz4ESN8hLKsgW
+AJb9nEVYiP0LQMaXg/9yDj17t7F3/tnf2b5/9G/4Z2dveGV7nhfazn67f9+yEdvv7na7fR/ty+0f
+UOWfxBb/eT/0wM8AdhXeKSqT0sV9cu/8je053tb9qZOu/3q2nzMnH/jK3z3yJ8xZWrJmsUlf3OP2
+aD/5rj/Y9s5+3vj2je3bNtd0t47rHhz34F8c2zu4f7iDTzC0fz7kJ1ZInjStinHF5eifX3b+nU/7
+Oq/Odu/c/uFKpD9+Qbz941Kf1YlaUqvBwMMe6eEDT7f26/o//jy/+Metez7au+PL0X85nmvb9Y/H
+lxfuyL7a7Oyb3c1mt9lsvM3myj55W2fvHLaMhOerK2fr2PaV7Zy23LW7pcG2rnM5OLZjb739xTkc
+XIfhsv191/1pdJifGKtd22Ryx+jw3cvT13Non23v+eSI9p+a7YN3/5sx8lm0Mh0MQIn00ME9uq57
+PDMljsyKjwFp+7V9ps++MitsGuy4/oY3MmH8G5u/2vHLdRwxnphO9snmV7xaB/Nutznx5/aWtnT3
+zuVIuzHfjv7a+67rnBzf33m8kZ/3e8dZx6B/ZIyc/bVBI3tLj/EZ+st36ZEDb6T1n47ntRPOLp/5
+fZP/cQB9QiubYVAKBi3BJXlG7s7eHN3dR1PYPAJ3xb/OHzoAjac/jFv113VgMXANggh98Z9ozuPt
+1lkbgRfu2XUOu92RQffCwN3xn8sU3m08r7Z56W9p0qO79V9s333yN77/4u7OZ7qDNe18E9r2Iyuc
+TyvST96eCfFk3zh7+2M07Ta78+7m+y60v9+sX/r17vwS23eL/TW0dwy33c3N+YYfv39npfRtJsHp
+lknLn5ftrXe7fadjt9tb++5mt5tsO7Q3zJrHq9Pp8bTfeve7/fbb7cXxNs7FcY+O59269uvV2oOM
+s1tmi+3t91csAvstze2y7nwsRDz5OwvS0WV2bbcOj7djxBycrXdiJHy88eGWv17n5617uDw9ue6t
+8+0P42ClmvxuRnzCXLc1jnrG2iEsIU80BAPBuXIYqM72wL06zp92gg/K9u+u+CnBjUcp1bv1iucd
+w9953+5imw5dBzoz7sxDMq/4kenC/9l7en790T37d+7d7uboPpV0+sZ+Onxd5w83fN7Ym7vrYV3h
+maY3DBrn1mOWeZXtnV4Te88427uubLsXVsIXy773Tuu8du2t67EV2Pt1NfjDDJPWRet3z/lpywsk
+0pdg1y9H9+Vut0792993nfphBfW7K3za8dj3JUHiCgcGzpkFZ90HDmvb8ZTrAsTQYiAxvpg5DLQD
+TcXwZtniR9qD320Zk0fX2/OSd/s7mn/Lb9k/eM1McJhTLvs1X8nXr2/xSz6/u6PzWCyYex8L4nrF
+ne+88BZuwXbohfXt/ODZ63Tacl3eyzdeb858PVOAr2Iq73beutoej08u+9Xuzqah+Ayb0ToCWTm5
+OT7P961f5lzxgiXiyB0xFTnV0K8P3n59q7ff0f+nj1WLp95uSh6errV9b8t4Xtf5dQ3n3jZ88sZ5
+5VuZdM7+tE7ttZloqPXTDIycFYfucvjr33fZ2uX/6jCY1JSeZMiVFn5x8FQ/iyXGKpAty5qxAscS
+9hQuQ+CQzRkOQqQNnpkHFOORKP3DRdcl9R8XXVWR4Nmt7OZPK31ilh1Is4kaPhY1l7RaMkxPZ/MP
+V/mE+P/r0TjSQrqHEMbBk7v4if2DZVkIYphHi8xRGjEAFFbrjBnjVlEryj9c7N88koSmJSUNHe0C
+uLG/XoxccGBA9YlswsnRCYo82JRAXf3f99a/eaRfrvKJVdCUpSzQhziiRgFPNFbmDZxFxE6nLvjP
+iGBr6xErIGG/speIAT5dqu+lSG8CSimI/GibEZMvu+4X408P9EFb+3UsQHJB7xxaG7VP8im/NtyC
+9ScCMSAc5VrPQ1eOsHmzK3kRHjMzLB6EVT/LicBECD4C2MOxkwcZW786EFG+77L5wcS4CRfaVEii
+3az02utMrQyeVYA5MZD8HihoWOhDh0gApud2iH3ttJmWaUxAMUtU6EiyJPmFmrxcOEYxo5kAPQ5r
+GlMA6+hm1soKFXEanpwWuOxi95IMOsIEnfa+lGNfeHnV5NtZmsTRa/QUZZA+QCN2Y2Vy+zCiUxrt
+ZZkSBfUUxt6E1u+30iysBmxhEM029ZlOwWo674EhYYEq2TIs79nuxLY4iyhgPCitkpfHSFjIzi/R
+Sl6LSB1jgK1F8+iT/BxJL1PbJDevhyQMYXmSkVOtAi0LoQGMZTfxQpUtVub8Hi9MLM9zNTILB38L
+EnEo28dwN4QmazDqrq2nIcrq57IxwP/Dgy0XO4gVkA0ISVSWJ1LtO06pMMpO0lU1JtmRIiEPmppR
+5CpZan1bxJ5MalmVWuEUkEpzG3BS22yxfwKyHgRLnh5rsPr43QrzoPlG3SQXJDclanmlqL/reiW9
+50mtUX41jNk6rlRn1Zt7GQaWYFXWqUMLTNlmZQy2p4JiCDUCIe9zVoWjSbo0V18LOaxuW0POng1c
+YUnVaoigGeSRerduqFDZgy4mx1lSM91TcRpp74e8jEJfLyhuOp05paOTTFr9XnTDAFKzs8h+S7Ja
+xEgkLcttkw6T7nTCegck2yOsYCdVoHKxKJTJ5Tp6SanjnCQy0aO7lKlauGIo0SxIpA2Ch8hzJ/mK
+NWbPfT/IYGQjqz0O4CepFlIHzmxAZZZLsY8CBcILoWdl6D9s82pIHwFTa7Gb012L05QAwR0sESF1
+rAIAtU1XWbd5W1aNP5sLFuUNlHOyUAz473CvzCNZKrCvc2FOs52mQNydbOy6dNtG6fRcd0Mn4Y9u
+5VezUMGqQYrKeFdJhYMurSllnVQNi9cddfQ+cwIpGy4z68hbJpFAQ8Y6Hjt83Lr8Bmxjk95NA2ME
+gtMk3E9o8qAVXg612yymcMEYsCg8QVH7Pa4FeeGbglmtGMCum5yaWTSvsOjkoYxry3RhNcnMRRG7
+EGza9eCoALDE4CMP58Sp8FJFe1fAc8OOVLU0vaZBE2wrdUl7QUfM7FEi64uLSFUBjJtUDGQ0W6Nt
+rnql01Z/47wUqbBJSuQ3nTKPNqlqSwSRb7QA6WWrug3M3HpMxFh+kzA2XdxWBOZEdbEvTs04Auhq
+6rHIHFGeVr2MoNC9OrX6xsecM7vG8plqmqgUab3FkUR+qcvATN25zqfoNBVLcdWA/WDeD714UywC
+Sy1Q1ITMv55r9x1CBBZbVtbjKjoZxX0rgtR301rF5rlOBIhHsVk0mVv2K7B/ZE3B1kBJsxMqs83o
+VlPU1247qXGHV3cmA+yaSHhjD9+Ez0AO62e8WvPFXd1MIy8M51EDI15C9oIwG33FLGma7Ept+pwy
+fhzcAfhW7TbP6YmlWowViVRR32rNUY/cUMHCwl4SQ5rJ3pdh6+tVEe4jOv5droKOItOsQ3ATl+kO
+9oj+bWr74AGBE6vbhTMKimBe4/DOGhRywKWI5p4xwhfH4Fn4Vuvh8EoONpvZ0UXlVkUpqLaLxorf
+aghgkL2VULjHAil+jVIQgp4GjeCYpQ3AxlYKchDKQ4Xah0ZB9N6YzAhbAVNtKZTrYQxpJOmfA9Yp
+gMLhCAq+Uca7Lu/n3J2WrrqJjELBqBr/TFtXMyBtNRjn0zCgs+GM7CAa0PPGpJqdRXiw1IAJ/Sho
+BrhoVWFhaCWZeuQMtRXct7MQzJ6UpOZ3NdPy2yrWpczOAKwkDHn4AJu4rsZtI1Br2TJ/2LTiXg1O
+sVXJKD4XLUUoJZhADasWhfOeWb5Lw1S7F0QQjX4HDRL0baUW+5XRirMPhNPHIqSNaPe6P4VJqdc7
+OIPznYkr99qapTpDNNQT3DmsKtFpKNUUPeqJqnYEPXiYU6V+aqNhdRzTpxK/8KqNMTxPUtTjYA2i
++xCadXBQcFOqqSDkVceOJk4qYBtB3WlKWCuuAvnOdBHsltTNYuF+7uSijneuYGqh4esUJNBalA2y
+fjiIBKcVOHKoWDNFO677JnBxUOhfAeCrT600otCUVKDhbE3W09exyanEKZEUPbYit+bEOIBvlqHU
+YntY6vabEC8ZCloNMBB3SIqehSatutEZKshTjgUqP7XFvuf5xjZk/tSoBORuLRjhGwuPJu/EVJy9
+vK8AV4tFBBcrSBDWCAdgeLY4Vavp99BmN5SLcChPdYabE8+ZGrhzzkrjiAD4JrdUC7zERwT9KOLL
+SZD6gRH3N0JksUejXpQDIY4X3dpIUh1PHMkrLfOgxzShj79yRg04FlgWBJ1HcJdWju6MdgaoUZWt
+9Y7L/NRf8VXRHR4xk+wYnVD2xwTY1LnBIxi3IKvRcByY5bLbhEieZO6Sa83kUbor6XNs7wWaZeDM
+R1ZYlEGRN7Cq5yEvdCZ8q8vbVpPb9iYsGvMsdThx2UkWZleTJZWxLaNOfjtPwDZ8CEDSfcBAknzc
+5KvJnoJHC1k5+COFwkM2cpG+GVVuKO5ULtH9HMb5PQyU9AwuTLnEylJtGLDDxopgdeJhFrE/pIvy
+vZLXLu8Qw7iYAid+O5MUYXJCOYhvi3ZIeweqpS5y/maoVEFsZu4sRcELOIdh8fVGSPZgdofOAQXZ
+ZV6uUla28wppBycB7avZOa6K4CQTKtVQvkSzcot45qQ0R3lI+TY1mqfGSNkzYYYyzAwmn+RA2tVO
+vZbFk7e0jDyb04fyHMxVfdJ7LThPc8moa/O170XZxJ1lHr+XlTnezaBxTacShlDEvAmosBMy6q8S
+s8le1F5Mv/UpUHVXwFL7WtSbWQeoAAPLGUULVPG49PHwhxzBP+IYWs1CNh/koAkL/DNNOq8p/+eR
+8WTFqPvUCoehSQcm8B+GMetFVqkMLBTAFYqf8y1KrAJbYfdhC7Q8pVa0vQLfAXpEE7NZf1zsv4jU
+nxCpaJKiUECA+39jUp3vn+XQ//dDPypIivFF1qCtU/RBsgLhlH8hUakgqavmiEgkhjkw2tP/W0ES
+5C+r/C/JAyj8yPivAd7fQFTjCyhUvg35MrqbMFz+TypIqON8zht86PMgigY0hzD7s40c69tAcThB
++KEbhNE1+iwn2FrX9/ljqU/WVd+UVhRhGMvT15KT51cCz/R1MBo0RpuPfUMrC+1JWTeTOUEEg+N5
+Wy+OORjzt1Acekrzkw4arobcdEkIuogZMSWGpWeV6nuH3+hljqw0O0xBkIhIA83wYdPaDO4DGEwj
+QAdhgAyhmc11Cvy+t6NFVsCcd4NUsieMIpABoGsnKYizZ4LUY6PrZroV0VMObQRBIHmOehGYdrPM
+w/2gG4LmSVCprqkYDyDpBjj9S4LLj5tAssYHdEZ0ygUlXu4bqc1mp6zG+IXwNq9dRYeMIYg6qE4Z
+njtgdito4EsOYnfoKNcr9qJ1YUzoIMNx16dWHkA7BN2NGBnCq4xCWmgPUjI2Lk1XvfZt215XUwX3
+zAAclm2mZAlTd8TK6KjAR4ep0Fo4b+v10B8kJcg0X0zz7m6ErhohU4CGs409sLobYuCjXiuJyWK3
+hJX6PtdXXjeAluQdnp40OpWmia2rg8rZo3FgWpuwDZK7LuiMEzg7pESr2Mxf82DKWJ1Fqa5dGAnj
+M/bpzWijahCk21jPkyfgn5kJEMWoAx8tJyNwIimI3uqBiN6h8J4Wl8IQob94Sm9QNVdbtdZ9rR0j
+5TWBXPLUBzKxOiBC0GjgbVYsiqVkGUBTpVMUBy/5lCBukU9jqBlImMtqDPpAQt3mNTWWxThUih5o
+V4FGKgINf33MJyePlybd1pxKkfcTy7nd5bElLBBQ2eedQh2rxEfBt2t9qZLKclPCu9Q2K0zwMe3Y
+DDyEGUU8jmMiQzirhgoqwIJUqiCirjmymbMfhxPBoqvUelE52J1l8zVoCWO01RixKwfv3Q7uCpYA
+z0pazYUbSlY12+1YCMppMIdmdIQCcTy7JdRnBlR1lXKSzAuwxNT5Ro/Th7zlCDWpeynJuuxaD/Js
+vGNylQ/asIa6lSBm5WkIu0xxFtIB7JZR79TGKF6Eli3NteRAQmM4gEcRDVo/b6RBaqSHIoZJ6VdR
+SuquEgeod6DTxkuNZspLbgxi7JLZSywnDcwpe2oWy0w3KZH9jHgtDmi2loiYhhgcNl8I9WvQcElY
+JZtSxHALIY0sOhrlUFRPQSL1xxD1WwJoNZ8JZE2FEB60ae/kQp8f4Lj3IENGOOK0bAtSqBXm5DY1
+yuau5oh0iMtJfg5lZQ2ChqEVHaJZI9pKVto+hMiJoWzY1tKzFJeC7IPXm69YuCIU2olJRs+Kg+yN
+8ZfNbpwNyksC4O+pkbmeB8OkuBdKDS6jJmANBeJ8BitYxQuoExJG96WcpokHIDw7KohOaF4s6sJV
+M49B64XglB6GXIBwQ6RXLV4olxzjEbUttwlRWrrrInKYF2tEGIHlU2t6T2giaE9pvfokq+AdIZpi
+nPMYTqGqgjsKO47HCGwzeggY3+Oq4tyv15qeuPkcZBLjPe0Tn9z/whonDPXjCFoRiKVlYgjGOFWu
+xhLWGGibEekNYZy1FiqelKaQfGThjMxOqTtRWyqEJLpg2aIojbs5zsiaqWKlvAKuGwZXy8thOOTI
+tWYOWR7xoU0STkNArUTRzce+Old5RcQDokYFKFqE6QVUhDg4zLZmOZK0GJ+HOYUYE2jPjaSEEkke
+KKRwfqKu3VRFMbppHkiMJLMuRz9t0DawlazCui1oFj1zemVESAC9mjHdChGoM1tRu2ncCgiXntV+
+laycmAiXOKyT3qtVuT2j1tG8RmVKFI3PPXIcy2AKt5NRMqoKTUn3hmhdJYqaGcdUHqbtHHWJcDBm
+eSydhszZbfBxsMeB03ovspR1WlHi+A4SQ1rAT18DguKv4OAjUAinWs88PNYJIJoc9fQN+0ERwb0a
+SbKinN7fpBE0e3/4CEOKj5CEZYrwZPoIVaKPsEUUVwoBWzThjNAT2aScoCUHbyUCniBuw7flIwzK
+PkKiZY2Opo9AacZzC9ztGj6NgG9RKPkIq2B7EmL1H+GW+RF6Ld2Cisp/z3rNZ7QQoo6c2v/vk95N
+vJKPXotv31fy0alsuu+/wIb++vzfhz7lC9AfHWgQSXi21FWy6wdsSDHxuuGshb7+X7/hOPY3/YhP
+IVlI3hUhUE0krOeO/j716V8sdPDQdsXZgLwVR9P/5NT3a3leh2uoAFuCeLfqp3K8/CRMCASubbpW
+f+nJF1elcMGkIxcNv4TagZ4UGMkZ4NmQ/DWQfiFB/Qzd+VwW+7gq7QwmCrF/67MBltBrJEYn/WXq
+91ZkXuWDJ5fwD1nvluXpp865/qvU8fOliHc+H2tJw2BAZK7lD1pN/VSWlQec1jmQs2WX5Sw4tZjG
+ogdpKhG8wQqqQz3m2gbRxrz2xD7qDKdtNYQhonYqUahJw8g6W02l9g7khfjSpbJwPyZQfZwlDAn4
+kT4KHit4zUxfEFgqZzclG5126tLM0QWkIdypITW6wUOWHK0xK1nnaUIl92wOc/DYca4KnbSJrR0b
+fa/YEvmx55K1uN+Zhag/KaUsR05ZNHW0Ndls3ku0n5j+TTOaD1NUK7UDOMgU2VNiErJK2BRuoaIk
+awdqId2ppYhQgrXUk2DDHgLFrYqRELkDkjCLg4dKgaaI1JP8bzJdfV4JtWBva030JuSKXFPN8b4B
+XZqfBLkgAyqbwzyQyAgVfE9YBrE0yqW58lTUYigthQAcD/MwkHAVlURNnF5QZ20/pop2EJPJCG3w
+5JC/YRfJp1ijnmeXiXJC8hYUN4nSG7UKn9pQYB832qTJnFwrlJajNvRRzjwCkNoZPzMOC00TIBgQ
+dCR/hRHhC1LMCyG8QNVp8nDbCxs3N+fV71GcmnYjqfS7I/UDjM5SkvruZsHybYPacymc1Sgzvk3x
+mGLPIM5d7/cIoqt+k5hZeODYMQY7pQYCDx3NLJ+Aaiffa2QpJ0Qukkr3ZPxgcDMo0MQAzlkY0Spi
+NRwtq21KN+sFC4MkLW5ca4qj0ZfxkE/PnQlp1UEcXYT8S0WTSCYqiHikmvBjg85GVbtGrRXJXkBG
+AALOQoq5RuYmiotLPYwJ52tpiN6QbseGJunEisyQqEP7jdaDOXk2K92WTV+TjFuP7rBl+EY51jGo
+tOYuf+3CbrUM6BLjBAUruSuyarQ2MVvw3qrMhTanYjJynidoQOaD+MGU50LfUy8hrsA5EfH43giU
+nVqbyVrVEFuSgmtAEgGkXQtPhCkcaYlYaDWiFzjCwlWny0LiDupUZZsuXDqBXStqr+s1AMJncmhc
+OdOxuFnWEGlQ5u4GV9fwoZzm6M3S8v6qQ24itgUGWuwuHaYSTghm/Guv9RNBg04xEhUJHtCVshGw
+7tzIWukhQ5DzdstaFEeal3EitYYwkmN1naxtphYzJltqm/ECrby7yYhyIjvNugpFqil9qActehS0
+TnhDFlHoXLMep7chngBRo7RznaWG2cEuUHvZhkY/l7ZRr/3QZBjqUmiL1nsZwP6GXTj3dhPNluaF
+TTN1thah0r/LLfRNweCrpMhATU9PJbXj6x51os6HIiBfI9EtJVR++nYFk4dx5sp6333vm3a4XjhA
+yz5a/tZ3wyqpRZC5S2/RXjEneyjT9L5JWeLRPRCFZ6icaeUrGKzoHpU+mieKpZzseBa197EMd5Sp
+kaAZMGXMV3RdoEx4sAsttHE0ZX6PtThAhiLujlr34VO8LHhQE5kp1wQj42PBee9xyUSBauwU1MRB
+BoYDDjL2puKilSlFm66ajK/Uf6NgpcmNhzpQcfqOS6MKvFZJ4maHQAMH5JlM8RpPmKpwQOiGFEJs
+GD9kef+bvPopebVaPXC0+L8PNLffmzCufjnE/PjM34cY/cuaYEKKGouMD1jJz4cYWV3xzRbCxqhQ
+/YR9FqwvlBo43nCO4ZzBPk9W6+9DjCR9AZUty4APVo1rE2/UT5zp33Go/5FVVbgtmNqYdvJdqvzp
+EIPNtGXW08COQXhhW036jHDB809t8m/OEX+6xicEitpZS6Ih3c/pHCHzcG4jD4WbPzmDStqanP0V
+sKHjw8yJEcUV4DvaJ2AIquUgXdCwZIfNCsmlcl2i2KUXwreiNPOXvqEYYscYWD2z3etQOMURG+Bs
+krvZRXdSKpwgynthC9UIVEMyyxGq1nq/PMlmMye21mTpu2XV0nzDCaEmrNAlEZ7koJjIBdeZUTwn
+42KGuxCxscW1wrqsr8YUJSAYcRqSDTacvFraCBBpcTEyaxGcA2pnj9j1oqKEZgmHKUBArbUdI5FN
+nHvhZES6pu6dgIp7akuaAWOriTSFGrKSd1AAdYNwTlVWMASWcepbFTcWWqh4l0LrTjvtLjBwpraV
+BhSIjTpgKR9IBGkBQoC19E0MEwNJIQOJjQbexiURKcyvZYyqdnJD6hsHOS7hEZdr9LMQ/cIbDrWY
+YtkTC3ccZYYcPRvyIWsEJbTDZPclknCuZY3LTC4tGZ9Ka6QeV2OjdyuSttnJ2tRlZPsW64iJn147
+owSgi0SKme/IfEE3ykGVPMAVQilv0UwgFMXQQv6aoxAST4v8pGLNj1QGkSSqrBiAyFS+oo7W3Ukz
+GVa4pOJ027bCkm2Q4Ys4VRT6mnib8Xry8GSUCzsfmA2k94TopHHxzBmHlYMPCxExKhEW1ZLPWmMn
+8zyeKFGH45VitrmGdGYMtXwU+/SBFF9XOlFlhA/dDF0cdFXTc0DLVeVxQgYqtRGySm9lJBwfAgVd
+NFeZE3l0ofSUV7DDG0ZMpyx7pQuExyq3Msbr1KpkYFXRQlZyCAoqW12W4HmVLRd1XADRNKPasD1o
+uRZxFlcDlCelWcqcFs/625bM0GvYI/HnSAAGSG70g/pOzS4ISbxKsLawICoEGzxpaCLI1aI63vao
+zXRd3kVXGhgEOxBLEjtS05mXUTNbqExSrJ9mQ8adDTppqB4CBJFIt7FFJgCGhP4Np8zohwfGf/eW
+n/eWVff7p3XUfe1ef/z69Jp/////76ZsXuP89ecAGUvD9TM/9hYNL1giMxBwBql96hxEZz8CZF39
+Qq1EksgLsqh/bB8/4mPtC1UP/KCR3saGZ42vf9pZvqCcuX4jDlVsWauDxn+ws1AL+HU9VsDfEboj
+zCPD+sHh/dO6H04UN3XK306qx1rm1Jhbxm44xfltLcr1Y4sZ+mtitMZ7lrUaR+FJ3QVCIb5kXYyw
+bowchbrpq4ppRTazOcqdRL52UoThDcxIcJl6dQCYZQrEMjkyFd8JXLpHc6mC75y6ECYbiQZv1TaH
+OEl9oHzNwgh81YjeWA1IDukgxOXSMMBYvKdm04RZ2fgJGg/XuaUiRxknSS56Q6p1d51J2ZX89KR0
+cN3AwrnSjDKPW8bB4paFiBpT2y/TW172+e0spilVYhWCizMrAtgJFLsW9C8kDbQL4LVVl8KY7oYx
+XPWS5kDPbIwGGtGWi0LnBqes+wYGgmUSOtyA7pgxKle1lgjI/Fa6suOkQWIUU7z4TSXcviHTEUmu
+kUYCGUchFW7BB7Zvct/oT/MUV6099yP6TGlYsweZutjvpTAWn9AaGh/lrFqDjGKWFGIU4u6LyOgB
+pCiJy/2SREtt10KCSB/M7uJ+ULhFND565dtQWPnXIiB9aOuZgphqrFjCUTbI4to9wsgs9EAT2Vq0
+svaKdqmRNUPMZXaWQJTXmswUe+vZ3QJeOQeiixSZ+A1tvqRziiYYwBWF4RLu00xQJ/km4/ggXVA3
+CuTqRleV4XoURsQLkDNa9T4VJTiDWZx4SE40jSt2nXo/arO2C6e0JgNgFMU+FRTyhGohGMoWGx/h
+Cb9r7k+KofqrsnkK84mkYFBMk4xURwV8i02JYKZHFeFUVAk+OdE4GndD3SI+KsZzdBFLOT6Ukrbe
+Q9rw6TYt09AthbWMHpTRY8hj4VMbSARMaqtEj2pbTndwKKndJW1h3YRaIBtuELRx4jSkj0G7lVMx
+2aSVU9j6WC6yjXc66tpWbbWPQRdoE/rbAViFqJykJ3UU2oKktKaFPkVz1bOUYagcBFaCzUL+hpxI
+F1FN66LWCJ0hVhRQIUWYrwC9Vt9Py5Kg/tS30r7vk0G2uxVY0YY9qolFGFF0k4N+BLKpy9WBmlqM
+KFuVoUiJHUG+JeYsr82ykx66OEC7TVgoJe5qo5N0vFcZr3sAbHrtL9gLHaIoRWAQv4PUha+a3pUm
+VTZnjM2FLWjK4A0nqG3fG3rQXUdNjBzVjCppY88kMdDHJgOvUi9Rm5n8EFI29mqZ+JKBD/oqU6D/
+FlXl+A1MavQ6osR5BTNaomygjyAMlUyoqFH26V3BKYpCJXKETz0ywC1GXY1+r0xFhstuTkbZX9DC
+w9lEEDvVjVu9zdC1bQOfHBVGlKmVSg/w26V0R90zvC/yZJQIyMNsOM0RwpVwyDlYdAgFMPwtqUcn
+UFtOZUteHGCSAYoJtbGO8RYUI12Xi08K4mRIU1orXAlcKrWGKhvNuzCqtCsq4QGVmzkhd78wjC3f
+Unr1bmHE3gG+oPCLuki2i3NNaNyOALfEnHhAVqIiXPzWqWkIk3mRc5jAgaH0XkVSZcv5Ru7dNkYb
+nb/IKbEC+WuuLGFN7tTYGhnbAcfEnZJMzP0ESjCXkTpE4sIhjdwW9ZOnOpjLoyQq+ZY1uj0nChKq
+FE0M5SSrlfiMSaT1Ljby9E6q3npvUbTp7SEJ6tnpxR7aemC2UeFkQgGgR5Vy2Qu0DHEDRNXwj56k
+vH4dR0q3dhgplEBaMg9vmAL0t2VnSevPenuXZEr3lhezoOwVDGs2kqibsTOZLXmHeOAA7gd53Hco
+mQaI/0RRLT0MJTLjtlku4QuVx/GkL2rwanWzcOlZRS6WYI3pphoaZkjQaRiNGPlay2QbqP1RzVvW
+K2kyA6C08Xwc62wSfXTQpq8GDuUp1bC5ewOqU+YYvxXKqosiG5tMbAbRTYgCXvrc4Dujyiym7ZC2
+ytdxpCZnW/NcviaCrk6egHrMWU5k8R0Y93jC+Ux+NZqp1oAetvrrEGbJXaThnIXVQdburbjjmAxc
+29ZApA32jJvnsM2wiwAfM8b5+1SLwteinRIZjc55vo3LD+GacsmicxLXgJSQrim+S1nLpBrJeaUM
+fDXLAGZm/YEsM22pFHP9Hupq8DIrVXj5SDgBJPwf9s5jSVJm67JPRBvKwZlGQOiM1HKCpSpHa/30
+vcj7W6tBm/W87+CzqrpVkQTCOX7O3mt371EnJAo+Tt+3W3fNecprQ1/pCHKdyXoFDAyYTenaH1kj
+PYAnoiyDvjERlRz1aAw09OCdAZ/XZ6AnKN6RTvrIBOM7+slTQesxFstmJphg2qFLgnCQ1LFw916Y
+TS8CKRAKy2F+QU4tnu1GWCMdLPqHfsIIlb5xP7UNbd3JZWdlMXH1WbWJNBgRDrm8YYz8BKS2EkBs
+PLUEy1AApjW5jdGa1tdILO6HR13sbBM71f4VNLqzVXto34a1BKxUF9nTaPa17rdS75lzWSLDhqCB
+fGx5pTab3JHTQ5op8ZtEtnPWWF2OTuICP1eVNZGPIIcu3YESlt02BeuV+HoInyqBgmjvFsfq7luP
+Wbk/iLg4J0TCdMcGSsNHCfn6ZkL8IXYGuvZXxU6qP7mq8R4iD0jjhnNusLexJhGiDavrQBqTy0Tf
+sAukkHZl/9BbGOKAeWpxtpdmebEZT3bryweiaGjOGhJsLtc+R4sDanWIljcU3/TBaQSSX+go8Kkb
+xJTFNu2GnofCTE30ahLNYkQKRLWpEnfiYuVzEtRD2F97MABvvWdZTyK11KMAJQpmcqpbfaOgkCOf
+TGf9X8iictTgliMr4I3mkDTv7JoBItXWTubuTnUJ7ck5SsonFoTR2S6u0G/JarWmLYGtjGNFPNhz
+ABp53alltn4Uw8j39xYYxVstH113wzJgfyv4OM86tINXO/ayD6ha87lv9B659pg887b0XiUbwh+d
+9t5dw2DwKxGLdaSNOkE8hSwJ1hDNE/ukfFGa37cV/+fsZslukEvCWXfckDFAO1f00u2w5rSz3DCn
+MAVIe88ZDNBfPdjfbnDrOwOu0nWGd3mmZi2qc+g2PvJ28THMrbhxnaT5zOLUfrVczaY3bmfdF3hM
+l/1l5iDyaPPSyVk5QaVtmr6Vn6EauzzoI09dFlFPvD85oTchcr14o9N3vnSVjGhrMe/nkUCwf8RZ
+oXFmpzJ+10QUv8vYsceAQqthLryg9x0mlQIuGxrqK6dTIWoOEFf1Psy18SaU69bSSdjWb+rIpMho
+o1L2AczgudgOBH2U225oes9P0mL47rP4o4XFFh/sZDHuoypFKR2OZRcFhp7aKUR6GOQwRmdEI6oa
+SBipnM4rTkyZWJiFZjTuoasHBi1qWBrwFZqbxgFyYGIyMH1Yd2EVMcinPw7ndch5XBEi11B/ND03
+3128vNxWRce/p+zHbmCXDYSLXjuD28Jy00himS7uzM5gZ+UjJR1efIh2bcROmz17TRp6YYDnCCRg
+KOWnZT+P2wKCitri5eHvA9xMPV+aSB62srMXCOtqKIdDuxRUmnRZQGzJzuKdnnQjst6mW6hmbASG
+1GSNJq/8DWrGYV7J1kWyfrALP4+XQFTz626KFnkYpQLwQrsY8hvN6DBo+JDlYI2Lx+ta6ozCLbDp
+S6C5Pf+VY88UXZ/NFSCsmRD0JfIosmxd2P0H90/a1YzDeK9c5TwpyGgkikbpom1skYzEu9jeF3R6
+nUHLjNpog0YHXahoCv3ZgCbkbJBHWYsP9G76gIWU/BZDBlI8czOn2IFoHE+eqdnx0YWacmkacFKp
+EM2bi24cFiJcl1fmi2EYkECjsDElJeXB5DBzgFbtmcsxXjrYQCiQ4vsmy2h12fjDjM0Sijja0d5Z
+M1mMNrrpmp6+DSKfNto2a0QTFS+TAyxEIvtNMk2rD5hVqMWblP6SzwBXTP9Ju/z/vYv/tXdhAYj8
+v/Uunsrvz6JjAP6/dS/+86/+q3thi//G1JyRs2uAC+VXdGv/q3sBeJSZv+lI2pkMn+lg/M/xvgAu
+6tE2R3djGsgHJVP5/9EZt/4b0l19/Z+LyAl75f9L/8K0V6nA/9pQpkGiwyDxBCJSPk78nw5ANVlE
+JFT4TUoxg860ZETcxjSOO/D43c5kg3pkK2Lyth9kCoJt0tSzQ4fllgWlewjbxg5cWr77Kk3YNxWq
+2JPw/ivZfREHYcpT7gJ+3Dha7QAgFHQlUpqqQU7i0U6Px+FNj9Bolw1ySSOx6EiLQfuOPWP8JDVj
+V1bibkZ0dsQSWJ5rVHLPU67ejNCdPkRq1084csKHtXRn89ob77Yye3TNVXOXSZhJKvzpPa24mHXe
+AMyJ5C6c8vJnCM2Boo2ohN2kivrWawFRMoG1zgnhEytLj3yhgdk9OzTXX1GraiO83rjNyA05ICRM
+76yJvqeTG82W1a/cheyGNlESOldAkwtr+kxiTdY191Hx4Rrd6HfW8IGRQdYbk92HX6XrgtWTfQSe
+sd8IPX5tdKTrNBnU8yzpFUeODiSfFJUTM7Kjk823ZUwiGGjFeT/qAgxXNKe7acpiFIFkHvmjm3j0
+kJKVN5m6Fh88DMck7Msgm4Zha2e9424rJvJ+izRuW/ahG7hhrOeBZSFqDFyyALJvlLQs2gpW+YEt
+aeMdtWlObhckp/OaBhBqEKhaR3vp0nE841nLb3l1dJSGqXdQBiIBUXN6/HmYKW5hFe7Kgvcd+rSK
+hnOf1g1/mvefoHRxa7g6C2xhOwFRvclBujLQ0ilo9LG/pMm30XxFBV0KCcYPCNtBKPVuj+3rYizu
+Jg9f7CXep2Gxr0PsXuq3tKN/yOZPA6owNzV+dZU/98lqP7XiI2XEMfaKo8KR5VBc5qm+Q4d5nUv1
+0KX5WYbhuc6jw0yexdXgGffNsgXirW2T+oSPod7VRt76wkYzMD/2cWxChl43VUgkIg+DFoUxFPbi
+KYnQdWYI4IIhkTem5hbobBkNyOKAiJl9FqP+Rg/YoG5IQ9pP5vDuWvF+rOXOHL760L5Hb4zI9MGO
+XsP5w8Axs5Eh/bFR72BDdtbOiTt1XQw34D7c60WKi6TcjRnhA7HVwHQf7lvHwcnigYLrYRtaJMn0
+UKfn+JX0hYNIq6CTWCMc/D6N026q9TNEaWyyjuQZE7jZP1zBm8it/MgFgVgN+7ovjT2aRYopL3mu
+KyvZWaF6goV36bO5YctTV/+y1N7oUruzeaNnwnvuYvnMhIcjD0s2mFqFIVC/savfOBKrK0j4uROt
+AhqX13XBDGgcdT1IMeSt6maksCWct+xfVej6R1GitHQSSg6subzp2lfDiwMacngvtUOuSYwnEDEz
+hzbUYv6bkbruI5v0N3Hf6eqHp/YV6H2h19taebe5fbOk1q9Npap09TwxTd96RUs6SKHdtil5C3Ff
+fBqZlm57VRAJMCUPEBKNLVrL27Wxx9YeehjpEFQ98i404u8pQfLbOuMd/Nb7SYj3fqpfeUXT9My0
+C+2nx7jmLqtwvZhFe6932TtxFtyf6Q3y4/fQLI5ojINeYYJWJeg+fKBfamy/x6Z76QlC27YdOfJ5
+pn3xPvkEpX82evNgju5LHdXPMqZcYODyERZGwfGC5RTIDOZW3vdy2uOh3o1xf8tYf4vbtr4rJzKx
+6ijZjcTutOW3LLk9U57vpdXPDq0p6pyi/JiKYccW6pJwVKn2Zk1y2zcoEpVcPsOQJcdJ9l5PAW1H
+LTdoT2yNEW/r6hp5xmHpYSk6/ccw5vNnRyaKmbN7TZ+r8KyzDOp6/292un8pDOGcPDESyNSwAfzP
+jr65r7IcqRm3wdJgWsx+WtYF5v0fYR1/TZaHlEa7433EPRudNTbdgnAzBn6gNL10O2pKA8RZ51tR
+Wfd12H7Xsd7uPKd4nfPxjoDuHWknz9KZtjRLvpYyC0p6LuSb1ID1NYDw+Lqtdhy2WYd4VQz/elPe
+Jov+MhvqCmXgjjCz47QwvcpSwvGqxNr0Awlo+hilx6St2betBTP5gv5I/2eD2UPHsoSTPl4rxmhI
+npUq7kDxH/IcRl1mdD94Dp4mvf1xSc845wke5NEDOznUFblw4bFz9hr+zdXg2wi4cSBIyXSKnXEX
+toSKxMtRFDdJY23Rud+opPohyXbkj5PLVNuc5BycJeEcGy8uoARrkB71sbvGc/kS59Wxs0N2JlwJ
+DH8a914sb82cO0EvH9rew3NXm6/IU7tXHajpv6maZzJi1LjJ6LWNeoTFvGz0vV6R9VOz1GMgnq4s
+Mt9GnN2moaHdI08J2F0wgW/ts0vwAqrhgXMsbnmVIyPkWa3sdIuQ9r1efkSTBxDPN0P/iBbtXELO
+wzfxKNlaQID9TiKdRkZv9BT11dZQ30lVN9yIYBoF6jXN8puQDp9VNyc8vvbtSLbWYWw/oualngUJ
+z/TXcjRqTUeE4ci4oMFnJUbSyrz6rrXVsTGyg7moXRSFjHXe8Z4edSfaCQufCvvzbLgbMDUklEuj
+qW49CIsDUmp6h5tMe2uJnYiiWyGOmYRZULPNB/YJcpRejCKjDKJmxvXzTCoH3VfRP6nfxaCiOyfb
+093YWkN01YtvduzvwnU2VW3hyFSX3sn8MbJfS69mKYbpPdGFSccPZ8m2dM9MZIEDEYDlFePbjj74
+wYACj1WC8bV9bN0omC3rjJyOnYjybaIqAfeSZN1TCORvaWYde/by5GjcVF39qMvho028M3JxrA3h
+pkktPyoR0Rvh1rbURYivpLTudHRD9bhmnrn7smSjy61iWf96ArXpbJ4qq4RA8DSQLcVOLMhd9ZET
+FJHor2wTcdwud2aX3aKSjlBbacxPaiSmJNyAHge5wNHT4pIGKVKNRPTdxoTupO2Tng2nVJrHacBm
+REagF5XlTutXeuMyH1qJGaO3+4AgovKG2hKNZaR6YiCi9aI/8UZiEoDPALDE2SvccD9VQDbzdr61
+K2ywoQeYsRUnYmLkbrLcbyfObph0U8Ga7BdV7xwZF20HN72FbbLLdfPF1o0ASPFN2FasiHJTu211
+4xrOjsQ3aBVCbgYRjlfpAd+NzoBV/zUaxc5W9Di2wzmvr3XL/e8uBJ41TfxUGyjIR4NJtba0nj+Q
+2wmVvUX+bte2D35jGxX89UqRqFczHWLSY8R7lJb7QhhfbZkGgxkf6QQFCQjZwVUgqLXPOA6DoucV
+Dy35LIj9QHt5jeoh3+uNS48XuVVjPZX0P/y2moN6tm7KcjwhqAjaZkFV5h0p7QJ0sr7nNIErb+JM
+8y2qkmyKAl0jomYkg84ywveQstYoAUCQ9GYU7MbRTuw7+zc03kyLKmmz7tM1rd+aa/giieek72U2
+ASvjJlF2ENsPVX+lmkVTlq1EY5irB8MZDnTHeehytbGw9qeiFVS2jDHYr+SYYzWiUvP0pVvjj5vy
+wvDNDCTmDgtCd8wJSWc54CAql4MzPuXdWzXvK/1ezi/DHB6IICYosd7B3gAALYOun7eWhuR0wLxN
+diYA4Tuj90ocqr/SlocSPjNtvy3wk33ksB8a36PJwVctX1oWZiX/mUblT1l9NBhc+Eq6fhTTDOMP
+Y0p6e1w5CsMTbdZAcIN4PebLhV5QNp1aeO20omBkOyzC9SMYU+axBclhGy0WlOY3RvaUe29JfUTp
+cBWZc5KIXjXlBR6qPVaCLAKzgAYyTsMJcwJiWtMameOOfGijBSHiIdM2drKo7CPSrXq9oHvHM+N9
+z2/wVQBFOQ+Z8GG65yeCHVu/zT5pGb23PPBuGuaBPTSPBev+2DD00EzfNKK7vKf+JUh4fozKcOO4
+t8KLblo6GJNZ7Jxu3vMUHCMmaq1oxqOjBAedqeIXdrN7YC4d0Hbc5HVynKuQZYTsgjl8aLuXPGeg
+7VmM30jcNGC5GyDJCat5Cq040AmHzBHmkGTuk5Or7bH2cBPiMAd5015Sz9jMVrdvwQJw+0teq516
+ZmG5B2y992ACoL5FNGvbkFHMwMRw502E+rRG1frZbE4U32TyhALGSjzj2KdFDEP6HKb5fiAtlSwb
+m8RYrE0nA4noArQ1tfKJSBqXhNEi3y1d41vK82NkuNBjpHfomtemppopzFMyZMEQkWhLJ4fxK7Lf
+ChXjSDGhHmzNLa+CjEAmz6yAE8uW+brETGptjWHbzDPs+WMBQZY0GmRYPGQC2TiKAEK+ABSR/GEi
+mvQhaG+9NAGqwnOXnFf+8KwHyTL6WY3YOveutUovbvQ7AIYQ9levvY9TnO31pNjRhTt6lXjorOas
+e/WGbOMg8ebHmracvjwQ7rUJ089afyIT7BBytWL2w0tdXEdMmI+lZ+bbXpA9OItdE+VsK1nhFrJl
+m3I6YmtEzKWW/lebOpaXsg8GZFvj7NanUsOo6Azpbci4S8zhOwLaY0f1r08UnHHud4bl/g0izu5k
+nV2XahVzQoBdvTzJqMEk17eQhViocTqR2csmlqCJnmwrdLcEJNARC23GJJmrzo5KSFUojan+yrBP
+2YO9NlyZSDj+uM7z1nItf5nDtufMEtij4u43HOVFpfRxVZwe8lpmhyS0uQMjRqoXQqRcPF4xLrh8
+0rXiEBl9r24hDFXtvfTaiWmqVrnaqRr1E7gc33KnXQgepMcD5lBEU4nfdQX+JSUDsokoJlPt20Hi
+PUUNX7vLtgJp22TON4sBm8XJdhmv7nA+WNxIQdXMQWLp3j7Pem7niDHmJkm8gZahNCVcJV1Yp7DJ
++evD6LwSgNt8ObQJfLPWyfgLu+xtWYb8prFCZpRqbqKR2GHScmFEAHtmClrdElNeqqBmBqr59VDE
+KtCLdaCReeYLDZDhRGLafJt2HivkVJVPOYvjsSNr4ZYgbpobiCSAT6ej9m9COH7TF4x5ocHK3yW3
+GKvP5FVtHcEKpGddSJ6e5TygQ1ev6Ltpm8M85nYcuMqLU23SlhfBrEgBbeMcRrZWfuGZxENaug9V
+VUQHqOPWSXSFTd6xLAKGPX2Q6Bw/yjzm8XE1nBblroIDdrBx1GVf8KE0ousYN7KvL8/uuHaW3Nz9
+AIBDQ5kKc3yaMHd9xCZzJiQ4/L7VcxonMh7qx3V3tW/dyrvo/chv9VE7y8lhRyDMiSKCjL/4viVn
+4EIcK00fCdP6vkw8+tltWXdHfJDymvICvKZtKK9dF5uXJeX10EovPo9kUdx4zKlOTC1BYTtPlmOV
+MF5659A6hv0sTbZkaer9pEXBIfE06wd7TPSDRCW5XZbxm1ZX86CrbtzB9VoPvSCOZClkoJcZmSUI
+9fYSj+/juOgYOtJ4Paau6Y5t6/AXm5rPo08UjEWChKWd+dTSGxCnjNoLwe5AQAwE9PpgUbKvP7Kt
+arkfh1beRFkb79x+aQ9IGgjhEGus+NhRR68/8y/5RpL3fYu7pb1JubpUB3F0L+siuq/soT0gr4Kd
+nhEB17g/ulnxuaNOyk6KNsZmAHoDGp75gfLWXxJUd4KUwq8IQL9tPY9DyYZxV/7FA1kM42lATkgk
+a0QuIdEg//mmpozPIeYR2ho2rs/a+2lFlJxVFRGEk4VYTuNcR73a88HruS2HjBPSJDxaeVNh12xk
+gLuHD26qu3GMPNqBGFxi6nvEVeFtWnPYpdOykR6tBTBLohnUrMsrqW+MdyoNYWfOF7O4i+o5B8Se
+RduRKeOtHmuIWS0brzWCJ2l6P7rHA6FKN9uXJoHjrfK4X9hbvieF/vB3M/0dwKLPnxqSgDKJ6RE2
+U/agSD7bK097GUMO/O/gSg10U5pjVv87QXbEp9ozf9ZSYUkPkhYaPHbkNA9TtLOBDbzwFoB+fCBq
+D8XCtL7aLYdi0J28C+kH5C+u2QvZEqsd18OpONmljsEIFofc2wOXJ0u8DwsmWvB3mHTJf+xBvZaT
+4jDXuCUQ64XfJqN3GSv1+ndwXZhgjoZ38MAjxz7I5vhbBpZv9oxrPx34IW4mT6y/xU4hmvKhknFm
+1jSe9fyB0jvhL7or6mJNpP5JIcttbFJI2D5EXMIBfa9SOE51i4NJORC8L4xlasJrjehbY74NoA4p
+XWu76InXmx+7x7hLeOC5n7QfywtfWjJDfFdvxt1q6AZqw+fZpvaCeYIvJvlhemHfyb74CaWCOUYN
+6CM+zuBiISH7+/HQxE5px/309y0RSvEJpBMcTG/4tDs+FOCet2kzh0d8GsoOX2sNYUryXWVFRpXO
+EPVIVqsM4PgVvCX0wo+85bSaXNeEZz6OJefvqJqp9y59kV3J3qv3BZl2/t8JKdtKP7S4XIK/b1gu
+RF3Jid+O7lCc7HbIHkYof37RTdqZwCh5I0Un99rUoENj2nls6zG6/7s7x3qZvlD6N1hXLO3cKky3
+auDnj4jJbxSp7f+51HZE7GvVd32AzWrWmN2x9vw9UaphxfnPiCKf+YSojdFggKNi4689smWiE5G0
+jCYbr5ZPhgTlRoQmcT/rpRjrVbemoLn4cNeaN4Zk7n0ffziNSTddFOEOK7/11HtKHMJUVU8dPuut
+FxvGiYhAzV9DIy+T2etvnp2wtAGGos3e1RSiCmgeokkt2fMKcu6bJde23VjfElDmiWFnZ+WurdXD
+kNbs6rWZIFOUdx2V326OWtpUkfhHLsp2IUvlOMPYcXLrXLnTw9i1vxjtjUCTZSBb1/ONyBK7vsrK
+TTX0x3DhH8/6TWOPzYEHAaBEpb1EkJ0QKc2nbg27dAzeaLXbEC2UZXd93+HQ5hdeM/4izXgnx7PY
+w7f7LG3t0lP1ogs92H314fTqTnLv4yNI2UP/ZOG9R6MtGbUd8vfX3rJ/mTCg7m4/WcHuLDQb75kQ
+33gmz6nSjoW1bExzvJ1scHTdVKwJPRYpFuD/Sqd7x9pFn7YWJctxfVuXHqVicd+r7r6u4m+8aGag
+VTr5YGTC7VG0H4nA27qzoDdrvE59+djYBeFV9nHx9B0a+ftCAi4brWciTI+il6+2U14a2/Lup4FO
+laqKZthqE/0lFfa4Cazxpx6rQypdc5PzwqJrU9n4KeYXcpZ4GpW3b0QNdGI2XxrPZZ4lbiiJPom0
+JpaqNV+8wvrtY/sweuFpaM2HeLR3mpUFIeFviFw36Jmu2ZpIm5LssHWMqt4VdcLsPKmfZwAlbFCu
+UZQEBFIyJbeZFwDpkuYHLsogYnQQero8l8J4EMgcfGRGU5A0LqkVcMKaPnoZqvmNsGnbB64RUetS
+IDdp7cf0xRApoFIVMd4Fxhl6KsVW6VyRMQNDMRVdIOPa8PuamAvdIR1niMqXpq3expqUkn4ZkqDS
+vGznrkCvsRH2pmeV8r1RskUuE9oVKVQI+tjIHSAjiXSaH9v+wwilLyq+DSQo1++1NVtWk9nJyyZU
+hFFiHDAxEOKrZ9NzRsH9QUIHWAWELT6maO1IsmG+/0soQSoE222E+ZSBwQDAmSFJaoYlmBMCW/KF
+nQMC1nTvlRYh7oV232gt+2wb0NiAbYKRJCQ+rbafAAL+MPHJTka4GlGjztyRo6HtbPhzZ3PpB7Jh
+tfZ1MOrep4vf3JUibICTwUvjB1j70WnTfzCoDFZNCYhKNFq+NyqRXl1rSN/iLnZPuOW4yB6aRcdh
+e9dW2DMRZhHlxY1NgPzgIDMVBgHXumu9oDho/bGhbo1HmbD7mPpo1QqaQUPuDV6/WdCxIqv41BYI
+M9B1czGEMj5gB5ZUainGiSaDtDJFU/3NskoCLeHJx6yNrIR7ONE/gLWCmXOqXJ2Fqph9RV2c71Tj
+sIiGXKCNliPpaYVT3XSkLO6meXZfIKmF2ymS4pRZg+WTOISBSVY8u3BLADv2WCM3pjEzKlIUcBg0
+IncTm8aHg8J7U/Dyges7oa4jgfi2Fb11xo3nbZLe0/FPtoXfY9m9TNCCqOSr/BNpTmqwLyE0Rscq
+xLbcfMMoNP2YDOSPVQmZTnZ5JTfr0HojxIQkaOxdbkhA/dgECypRvfOILSM8hmaDTRytaVnDkbjZ
+aFyTk6gACcXRDzFv4EuovPAtZYTyCbZ0fR1paCXTzPQutkvhNk5AOTFaZXttqbxHuqLYa8rFq36k
+MRZ7RYz2+1/Ji5KRYrioPCIXPcL23tvOocAtUQBjhR9h0g3ztCCW+StbCWQ5y0XKq522vCvTNO4C
+9B30SnGwLMF6CbalxiuTxjbjHgagHUKwLLxJer72Bgnx9KMMk7U5bc1rqrjQfhkShEfvdgQ/6XTI
+vEF9Nm/jtJakkoQhGndroV1T6qduh85HT9Hrg9+lxseJnj3AIlXXMuUaZIuVcfcUzocl6vZ2NrXu
+GcdUconrMLyZnUw8AHPKD7izHD+uB+Y7mSmWg9foZD8XZmKswuu1Wx3HjP3METdrZBV7TAFPbH3j
+zZIP7nOrxdVNL8rwrlnwR0ULTXFVxep27l1q7DUvTc+dZqfja+2V5z6YWrvcFD2zdFrcnedHjlXQ
+cJlzKLRZLPYMrgFour1sPVB9UUqDRPT/0EzFftQYySGMl/E8UVuz586XXSvU7NsT/apFJcUeFVl4
+t6AVvkHT016smHylDU4FQXvPaI0fWtjWxc6N7I4BcEtP3/TYXpBf7Ne54BGzBl27aozFbxc1S31X
+Muh78Dj1r/MIBWYz1eRjZtJq3+PMyH/bSeV74ZRgr/le3Uva2yOrMSbahzwT4SEk1n4fG4t4FUJj
+YlvFffyTuTpEwcGVxq1daktQKCf9ZQPb/ZCmbBLtmTfpxkON+WG4nXLXn9lcZROb535EZraOnuNj
+6Ik+3hWZSA/CwJreNTYnaFB0IKcwU5dIlZIUJkSzxdauvP4i3GGlEitz3DUpTwUqJOG+VVpSXbKp
+rgdgOXby1ZohXYSZnLD9XA7uNZeD+elhL0eVZ8bpnRtFJuFaClgtwMm1o6s3qMdkVVAydiP3rq6t
+t/1a3VeOnp6NWlIM9U2HH7itbR4WaZEMrYw0eyjIjr7JeIJtsqRKYH86Y1HEaY0lr33Yu3epRhQg
+Au7wmVEdnXnK/JtQ05KdqlDlb+kFvWSOY6ovj502O6kOcPSlXLcq24j3qrzK5E/nNmeQn7gHGFmC
+f8pAFCArpQ+kXO2cgc6hNUf5qwVGPae0zyw3JnNcS5uTV47Gu2tE9J0RVJOqpzlgps+03zDsu1PX
++guU0fxSg4D8iSdv/MTclzxNvYFWWRsRoflUYgJxANeTu4uXSenzEtKeEyvNmd3oITsuAC+0FKtJ
+nQDsIuqincLUXEamuBgp38LIx+UurfMcGmPvmTNinMU58a6mpTyEonnFRcSgM9FdvnhqZOoHAIL7
+Drd2QQgbN0GMmQ6GZcc4k61Smx1R/hdHltonCBf3c1XWFm0Ju9q6svrB4Xmiunu0w7C8J+edXrut
+DsTH0rqQMZnqyUCDPUYt95DDyc02xTh/2XV/Ny+mfsmURrcQCHAbLnJd1J0UtGU2pAE3KFYEa1D3
+c5qLU1Oaw14nZDIYOolHgIXq3iGAdT/HEyKjPqqRyEX2eahd58N1AGfW62JUe2thCY33jELQ+pqI
+Ct5N1Bcn0JuoQhixhpk/jOIzngQgo7G3v9ENNExphLtA6iD1zvI7jRbXwYnzaTp6k9VHoD4ddJoF
+GZzTfqyy4qySWRVBprnmYwVAugt49oaLU7VEylkIeui3O3L0xVDqfL/Fnl0/VbT1EbQnp2UUgxVY
+Iax0LkA7PlZsCb4F8vRb4NzGxwCC4jCTBQlxwDAocEPXfLFA5q/z/LS0fHcyvS+Lyxlvsbcx2hKu
+fGBVw9jSFG53mAdv/hYIuXq64o3H9pAXgHZYnCjZ6ite1iA+cUNIFJOUJYait88R2CfbEDdQs/ES
+4d7SvqX4n4aKVp3k6O2MlZy6IrJOuA6qZzBa0ady4KSoJESjM+Y0s+zCvkk6YX2zjDhfSVV57jaM
+MZrmcDs+WNb6O9hY9WXWneGt1U1cGYMyJHptiXjGa/PdtKIjNrk517DoSoo05vta/1qVdJY2eJIH
+auHWQhHUiGM3Z90J52nxaIRT+0R/IkePzNhtXtnwoGOAYT9amtAfXGQQ7x7Y6GDQi+HaFmP+QBNS
+HlynmU+EMJdXI6rUL9Fy3nlUKv3nMFxrma563TkziR0d2YjdhVhbNznU4WoreLw+XMjm+2nsw6uJ
+2gu0RD4IP65qgKxiVDcoGDDlArCONDPf1di8LrS9EZoYJdKLrKBZ78YrzEW1CcD9xNr23vLupg7p
+1LMTvs1Fae9rKc5o3SEZ0vbyKrwozFYV8DdLOpuh6cpDbNd6MFcUw3m0FK8h+bt+Z4bZSZ/jgXBK
+7cGqjeq+A0b3oEwV7uw8Y1dahlc1zjz8lda9EOoHnoOoUBrIobhCk3Pfhe5CTkVO+E8t1nyNsjQh
+ujvq2BWUsBqszNtT/1ypeJJ70536Q2mk3h3Nqe5T9CLBE9K1n0Lr61M4FwxZkVPtVa9qOrq2cSNN
+4l5dTIzMBRb+o4aZHrM97GliTpvcaLVj2HTgfppqERfEz+Oh/u/snUd25Ua6redy+8gVCJgING7j
+Hn/obdJ0sJJkCt57zOYN4PXeDGpi7wNVUjEpVWrptquWeiXqOCAQ8e+9vw2St2TATEcq3O54Y82i
+x5INvObcqI1oXWdFdhprqgc4g+BpKwe9dQcy7w27kq68I+KwD+DUkZiUdnRRouKcpI1VX3ljaK1h
+8DZ3bVJNJ+xZXE7IzGd+nZLMLPin7FKYqGACh94tGsamecpuSvA6Hsj/48RgeWsj7W+BS/OIZDm3
+L2sA+VvmfdWuTcngtRi2N8NAraa7QE1K4TiXLh68M+gczUnZWuElanSybYtwOgeT1xwRk+aDrQqS
+RFYYrEmtmPdubOanc+oHx3bExsRIAuU4KNroQqXMe2SWjyztqAGEObBG1PRnx9D3d0GSexc1aYdT
+sD7RWVUa7ALEmB27tNQ7N1EZk4lpCo6hX/LHgzx0dBef4zfu9pbB0E5s2orm3rMGlcBe22ZPBhRd
+AmT8ZOkWsD7VyMDkUkQ9q6bnBtjaPNyVbdGdRdqNuYJcusQdHD2WxyoScHDEL4kMSfhlKFapIBRJ
+UkKaZwOnaRzYPOHTNGNo4/clVzPzQVxTs3emnAwymi/tYlgFEQ+MrOvKY+hCHmwbg3zRgDDqlJX/
+olXkXczZSK1vnbXH3qKCcVV1ZonQlQU43+AOM8YLRXqjwi54szm6nUyh2Z4kE/DGMwZo/qXFFOrU
+Jn++11NuPnSY2pGXOWPnRNXQ3hl/NTETtZrWC7TC4up9NhfXzD3zjNkp7sbFpg7o/bvFwemhsQq9
+x65ePwZ6uWhoEyQY13tnDMei03fRgN4IZmXY/I7KYERfcD5gqhVxdmkKypZXNXCpN5uqGKI/hQgf
+bANsMiNcKHECV+YOXzkHgCABw8qF6F0w1WHH8D4YXTJC55LEnV4RxX0l3wFUa0Csb6dvgsDJteuw
+vJBm4qTpkluLBvacmspkjuT0zhqNbdyR8+t33lB/Feo2anCmOWK+ojN5EcTKjZ9PzDnorF7BzS+u
+RtJeq8oarpN4rHe150c7wr5QbKq2OsE3pS6DUEAl79gOmNhHgTc1eBUbpfezoU4mR6k1bkuMiWXG
+rsAvNnNijM3KRwgIWKGF3AgLd4NodbNLcj1fGGKUuOu96nQEq8o2kM9YYHs+gHeM2XMo58ryTmaH
+PRFwnvB2cvT4Gnj8rF0GFJFG2g2nNSh/HrtUnlIcoxKW52/v9e1JNle37EO8MwQuDKyCQ+a72Tav
++GJF2wdvQO/ZrOpYVreNw5SzH8mcrQzN1QLCMd8wxoxObT1wlow6XEqEcusOLEJo+78SSf5j0v9o
+0gcWAM3l38Nr/od5wj/+zw8O/V//5DeHvvdFg1Q2YczRRKHxwP/LoQ9fAIs9jnnhki2GGfC7Q9/+
+YhP1p5dHmy5ufKk/omu+kHcF7AhNjqYXyf/+jkH/R7yAwxsDjwN9z2YlMaHXfMK9WBAwYxng0myD
+rh327EEx2uS8tYJBRw3Shqy6OW1g7S+SBbUw/erD13X1Rz6eyUf5kA9Y3oFtW9rk1SX4afMzkrw0
+FLmq1h5XTsVwbIXMMPiHKamNZ4uCqsfQAUW7IY9mPjqYYGMeFw3Mp4QiCZ6G1oCVYyIlv6/hvOTH
+mOBis5yt/Jefv80fUwzv75KqpHdQoaOZ4S3f44e2KRHlRNPTiky5IfKbFsX4jolmvP/5q7CN+uHb
+INfg8l/3cNEQrFmiGcu39eF1gihoEsh0PJca6plWiu1Ftioa5b7Gra3JRY70Rdi+yexN+7q8tb1h
+vGyla99p3STY7nXk471CPp+2C4a3Whm1W9SXZUI78ZoFrbd2ASFjfWbkejCvfMrB7PNIB6O8tQvm
+XVufVRLH9OTF3TEwC2tGtYXyd0LJuCDnWMez3JmdWzwoRWfGeiIC5a3tJLRYzmry6wGhIjyy79Ju
+IcravQZOg46rY6PKT0evNfpdHSUzZtwGW9hOVxwgd2JMUm+TOBaJoqGWTNhsK+f/ZdaSDZdTDMFt
+zWA3Ta4gBLO2NTpXTYhjYhQEgk3mIc1Jo0Plf83zlHAqDLekXUMf8g+u3XvyIWxspB4mS+24cfPE
+jw5zAV7ssWSaPB+DBPYb80ib1FvUUI+wHPOgCVDRHRZ7Aw2mXnNi8KNjY3fYwQezTc65YEumXKXu
+CRUMSqEIoetA2Qsa+UgPT8kxHIofkAIs+OwtCZEKCqp1/OjNWdhu49TDhRgN0yTPA4fK+y3C7CzX
+tZrdiyoMjIdoTPC4KC9pEdfmQKOfTm3DrRm3OGxhTpMXHGsP43xWk9fayXoQ9dccvpJ3ZKMi4VnS
+hV2vKzsW5deA3E970RHhWGJztX3ntnVqk9mPDO+APVC4R2YV2jkOfjbS/NS5VI1nc95md1z95bDJ
+tdb3sIFlcWx8tIG1SnIi8UDnqzentcqTLDF5DoHGGeu91n3KfeqZXnUeGQwVV+wTFrMdzlLc7XnP
+UIaUrR1dZapxa9ztI63dTP6w6icqB4RbmMDuOPEzxODqia07aZNQ3JLxFezzk8gGPxmYdvbVH4zs
+jXxojDnS5riPyaax792omRggYtri7DOAVzpj4IphD8iIvvHNInyMpeO+iqwS9XEMS2xrbj6MB2HN
+oXExVC50K4NRwCNApH4gDdwzk8WZcpNORfwGjaXNDiVejOtyGNxr6myCdh3pvmZYatac0U3QEIT4
+1XhrmXLilmgSv9x3XuKJ/cBxAtyn8m2CtwXFHYe5EeyKcP5nqLiq/oUUJLpFDft843MoFITeOasi
+Ddt4sSAzFdHOQfK9MFFMFqbVSDOaidti3cQ8kJi3yMreQjYcDnEMnIieKBOHjZ5Me2fDrti3bZCR
+K5mSUqzLccK/xxbZm9ckqgsqriDG78FK9E9W6oxgZ/xpbtZO0vMDUnxSxuvemHGKTvXQJccmgq6P
+fKyJHzSlTxyrjMYB+sxkNONJIAhxYBHK1SHJ2Liuh2zQJrM6x/PBJPFSOJMkW6LcJJ+yrk3sARtr
+lFyCnNdDnDmzXPa1eb+SHOPvbWiU9w58v19Cqb1rs25Brs8RIg5oh9a6V4XzmOKmfUlEjdYfEZ9c
+EXUkMRUYiqcbkGaT6Ibvu8NBlWN00bVhrDZiDudh71sDnBbsXZxCBrOCpl+3DuGCISiclyibMfJl
+cRffofooY5+2M/Qcq81nue2sISVWEjhgyNq0CYJd0pmFTbkde/4tHjX11dRM6fYqyupTJDSi9R7W
+nhw4hcwRIuwS774zRcUrO/D2LehMzIBGOCYnVlPOL0Y/Eys26HPfj1bvvXr9MLxi+rj25VAxTegd
+IDl+ikWp9oyMIJdiKuaV1UMhxIusiHSvPR45TzJ9Lck338AJC19VjZdsMIpw35mthaI8t29TXcMB
+qMaJSWQuCuOrnNL6Kenb0FtbEEbR/6agehpAhJ4S+wfILUGIP3eKbNMq8bsWsbSTzUs+hSn9NnEw
+fQuz5swd8wHVqXbNW7Tj8KX1gFMkEBfvI1upGLGhw4qlZ1k8lpFkOgXepbpouTnlKgSvKp8nt4Al
+EKW6H8ju2uEEEbdLvruxzIq1JuczsyD5NVZLVWN7K0NvgP7iBVR0RUStcaY7TESsyMpvkzruql3t
+V8VjkEu33KR0Z33Ne+K+qy71O4izXmM2XMEB/n7PKt+o9/KN1djE+RuW1gDZtUx6jX85xASX6sbB
++QkT5bII+w4TfAq0/CQzTH0zwi3zjp0xepcJFVnw+1WJGkcGaYrWUwMMH0Kbk9bgfIYYmFUQuLhR
+e25qsGOMDspANuVqSEjzres5rL93mQBO5xRF/IjDv8S0alTxRR5H8VUncORvA8PErYZHqX+A57Es
+obrDjGS4FlaDLA6Daz90dbb2VIlhciKSmJ8xlQelr1vFVrBIx/h6smZCSBP86CcuKpzW7zud/xwe
+PhwePMuG8/TT48PVN0jeP54ffv+r304Q+gunQO0JCxL30s/yL0KZY39xqdwCxk0Ji3Qdl937bwhv
+KcFfspOEiiloZgHi/a+Mr3S/EBgGjfkbNlP9nSOEQ8/Lxy08JxQBJI1TBHIHJxzaW37ctFI4FfJI
+NhC6C8WYxcFMhkfUzLNrQ9aS6YvhGkebZjG2zzjbwdy03Zggjenkmz2qSlIZMPJYS6uIif9I6sZf
+Qfmo/W1vi4bLMlsmL3liBEfXxyWzpmK2Mlfu1JCwydN4esWu1y5iHwtVLUkTro2o6cAiOp3Nkd/K
+xKVjBOYp+kOHv8+3ffZqgN3abbCUu4EkaIi5RJ5qrq1IkkX2aYhn5ClnQZvHaADvrmthP3huxsIi
+sBqEfuY+zqIVuKsL0z/Ebu2+tZhRr2vKwb5NTmszUmPfwJtAPUO4CFIUkSRyx2t7aGce2YXoM7r9
+DLzkvaP4aLXAuprUddlAiQxtmia577C3171DMZvVNw1ksjn6NoUlm8rE99lwhOEI9bgDKMS8K5u9
+bwyQWC5kFkIYTNNRg21z+vrZTyYUJFbz6RCoCZu6DtKBqJCfNY85ozhM4Y2njni5kluegcRgChdg
+dJpF8tymjeasLKjD3FR1ZDMsChr1UpBEfZQEW6eDF6ju0iHJOWE1YMeHmUK1p8zU8vNgiNTXWZmz
+v+kymV42aR2LdVXmw7OyS84T2dwAvGSQdDVURfGce0V1E/UTBSNzxC5ubXohHW6r2EmYlHhJMdwZ
+hGHeeEVHHA0rcu7TPCZ50PtzrzdDl5rTrsJkCzeFyc0LD6Xqe0EjIrnFIOowfxA+zdRmtGKio6NX
+ob+hLU7NeqRO7Y68vKNwMHrOQOOEjL+C0bGbI7Fapna+Cp7UhATHs9H/VoNtiyB7qabapYVqb9w8
+n7/lsLGewmIiAmRq0V9E5ZRdxPZSZRhSoQegWc0+GwQ0ICZCPjHX1ZwXQ0bNolYvoePgvi7a2Pc3
+tGelBhef1mcktxPcU+Y8X/qJ012Q4OGAoQv32RQeuQ136OozQUb6lBN+SRI3dfDrNSjyE3tTMlRZ
+aaq1HHFBmS5aw6ozEEFWU9Q6t6BzkdPtxOt3mPbNYENJTbOz58C7gbRaHzCVjOyxSm8f+kFGLFOn
+FBR6Iqf1rq9DKDkDqJI9jr/+xgBmgLFGi+a54SDkbot5BHdiwOvgNdUMfCzJGReiD5g1VtpgeNWV
+bny4VouwWbtsWVNzHKbdDNINsLud2uhgBZo6FZVFovedkxGwGuN+lps5iHAR+EH3POuKvLQoB4u2
+Nr+haRbYCjs1baUFtKJEtG8cXZockws9IWXHj4g7iTPfzhE9GFm/m5N+H0LKhs86TdYZ9R35dZzQ
+AwUa3Sfkj/aR4crQ9jeLn4gCwapIzZUwY7C0Zmli6B86rFAckiiqtGkvHTc1SDvFMDUBuR2EQ+xs
+Ek6DDC/zKnDXnu+GT0bhNc+YPdMzkgD5S9fWjrvqaG+zdvbU5QW4OpD+aGDKba+zqFG3Gc60jKOx
+rE9jmHREmfEEd1uz7RjMaDLka0NPs89B33Ke4qjAuIAeaNRbJJ9214O/QcQLhcS7pwbzPoodhpJi
+bidI3PHgfs0gMF1VtiDr0Xm6PkfajaNFJUkfmCDRlJzijfgFyiO4eISegb5cy+03BefRaFvVPXay
+vjTCV9hktdhxPmHCPlVjAkyyMpq1xCJGCE8laH5WMME2GwPWfU+wDSX3Eto3oGaYXDhRUbyNne/d
+9jK19GogGHTjZ2y/Wc0kWiJLHdeEkNZIM+M82Ec+Kw1+RhOx4DHEBhAPbR8tcpad9TCacccuyKlA
+3WOKwuGozDF+LAfYESu7A2s42BHAhCIshu8ix+NexAAlMLmb6CnvJnvNLjrdBJMDtAbDC1d1MS4O
+POEFi2sgBFeFwlSBjwnqRQdYYIIuZzEXg0LQvUMVM0EsLbDD8SWwDPkElLcCrGmFLsYbEzdDT6eY
+wZmQNXqFfsge0cBR+dBQ55OhaDPqYCANzmWL4yO9YTnu7ZPcpBhhH0wW1zYetwtvHCHYB54ln2Kw
+RBa+U4X9wKYssdqnXZvz+6CevEVp5T5bpU+GrepgS60CiQ91V3ijTE5iQJb3nmMI+3SesSoduD5Q
+V4jElxKjNkzpdTFNDDDEWEfpsdE1AJomSrz5GnuWfR+IGDNVkmM4OSbCGeZD0lIBu2q5bDc59plk
+U5Tc2uA+84aao5aOLVyEumX6ng8VMB41VkcxJJV946VNQgTOZgh/KMIRBnHOQjDeBlSi3/gsTsPK
+EliWLkFYMjgIVZE9+705xZupLRgnQtkPYkAgTcPB1W/dA6MyYqNi8sZ647T+DCTIbHyFJ8405Mqe
+O7JqU2HFN11pNUSEEUtjtsFE7JdNPa2Js1yElXhQhruN0HQwU5HIpjaAYUq1DVocBNsa/SI/UjYt
+u51wTdxqpqHwHWBg7akEaMfUJGzjEPnBecO/H2IHADo9lwYuCKsIt1ZchppL05pulerH7gSBtuv2
+EQ3Sd3Vm1f4hS3LinyNmrDsOVuZ3W1X6G4hiMcBjDCBu+nYI9pKDPbH4qRXpy0D1253PdPXNCAPO
+6MM0Dkht46BItHlTdUoXs/WE72GJL0P8eEIRpd6pbk1vX7FZiLgf4jw7jBy9gVoUZb9Bsm6CDT4g
+7IbmXJkYbpOKW09K6oNBLWBtwhLBAqilUlcNzNd0VZSWTwJryRi3fGRK66o8CddWM4l7AbH1JUVV
+xOcECtylucvU9dqvx+IKbCXcwGJI4KYgaYbJrrAy95YnGZu5tpHqKvQd8tlU9bGjYhRfDhcl1W93
+Iz1vLvsdF/aobOiyWEPI9pBHLFGNG7mwHHLqSNutmxEv2NK7rS7T0O8f7bwLcKJQT3pWGaN6862k
+I4cgay6UwnYMY8V2sCU8icEdyNM8QFgIRa/vYwo/WQ4wetBvFU7FU0+RFba2OOdxP808vdGqBdZE
+qFvAOVSkaJ2ykjF80D4wXQyms8sCE5X8dHwPwUC6jrnfupZVgTHfMxGPabzK6BbtfWsTu0Ny6zZx
+26Fvp7G/cnITDkksMmb2GPPezftASnlUS5Z7Ws8CwF88KNydmYTZvQlpwuJKhyR5MrbZZP5FH+iP
+s/PleIBPxDEVuH1POBxmfjweQLyjmMSemDANjbMxdUoZStHHu5/Pzs2FhPyRXP/ryyCjcOCh2Mik
+L/Pj6ByUEisskNAN1pBD6+HC7IPZ2BZwB9aV24iLyu6yXVgpIl6jP+4qms2vGVfYVz9/I8g2P30f
+y9fxYYRvl2JoGWpFmwhdeDU6qt4ra7ktVYax0uMxA5lw5WTI0g4Jt+3PX/3PvmxX0aRp0tpE4O5T
+F4GLn2ByMp77nQfCpLWomJdjU/zFl/2jaPPrT/rxVT5RqesiQopRXbTRQdCdOJU7bUXQ9bsiwuH7
+8w8kl3f86XdFj4AXQ0qDgZ7z6RPhSvXDaMJhSNqRi7sbueVZMRFCT6LCqp47QJPmsYAg/Qx3adwM
+LUZklRaZuU8G0z4vyU6qlfSBS0Wg9A7mLA2GKKb1XBYJe1+DvRhshlh5VwFMyr9qw/3DD8KWWrDI
+sxnRCpXrk3IEJYlpW+zhIYbMtHJAqWyNKDKPP/+W/vRVIJm7juJ7ctWnIzhg3yEsNc02pS25vbSV
+7WCSOH8h1v3hZ+ezSGRHye7Fweu0vIsPl3YAXm6yaNvZGD2pzzCkoiga8MWOvhhPf/6Bljf8w6/O
+S9Hwxa0slODUtcwcPrwUu2chRBQlmwr+yOsMnPXOcQI4SUAS4YUWxkngAfr5+Yv+2edz3kvPkFd5
+/U+fr0b8cCFbxlQAhtVO+jaZSJnjgjVIff/9l3It9A3sqw42jEUI/PD5HEL0zBu4LIbZai9RmbJ1
+0WtyoAn2h5+/1B+vDWVarMLsOWHEafvTtSFmum5LsumbcpiLvdekv9SWm//FuvPH34vrwbS50tmA
+L9fIj5+nsXCL2guCtbTVdE+DxUzg1Q7PNEWVZHxKKBczUuRf/GB/9tE+vuqnj+a7UyHs8L3DoZ8P
+fRm1+wLO4+HnX+CPIjmrnalMhfbLHE0tI7hP16IzLmhRZg0bQ3fIVbjeoQmN+TqzS3lK/MRnjjP4
+1sEOW//bz1/6zz4gBcxaoPRzmP+8eoxzQ+fYOPJQc12Ey04mZ9R7hJv/xaugOoOgXQwH5ucPGHfs
+s+BAbpTsweawLu7M5TD581f54xOa7xEvhKBPgeyT4316QheKHBmnVmI+BTvZTTUUgWIPpdqWobsk
+EELZqXU2hUDm1w0WORboSvgrm2yOBApVltVfvKPlovxxkeENeXiv6X/A+60/vaE+gIJTzTZvaK5s
+7HvVfJ07tFtRO+oKqBm99xdX0p/cJVIIrBuWIwXlRJ+eZWFr20avBrgzqiWm15oSvhO52IPwFOfz
+uNRnvUIF/oub84/rmmLJFtgJJPenKZar7MNi0xqOJUxqFKkB1mpHp9t89GGQOSvmtdL9i4vpfaP1
+6VuVrABSLo8IBIJPmwOPaKWCGBFvCtUhZGNNx4TdGLeVIxS1f7gLGbmZmNqaQo4g0Gfvgiu/QPTj
+DLsHP0qR3Oj5+/er7z+KwwfFYek24Rr+93alq+hb94//+9muxJ/8JjaIL5bCjkSTlWUz0VmW8X8C
+RW0XHYIWeB6MAB/ZXbJI/C42wBq1LTxJyBAOKyQLaFMgm/73fxmm+MJ/TDg8zJcmE/Zvf0drcO1l
+Kfp4cdGrshwkWJAtnmqe+2nFb8raALTGcC9I6Y47gp/XFzMg82JTylYcfnWfJKNj32ce9gmOweVU
+AXdXbL4MakLuW8vmXB+HBpojxgUj3RlJ518qjjDuGodT8Ab8E1B55gcLf711fHtHDFp+N3I2Rodo
+NC2iaFT3GBSTOM01C6cbbPqcHcrKKs3I3Ee0c+BPxCnzS05C8jsksfluSXxSZTpnE8VS2glvSkmP
+Nca9qaWSrwHyeVBQUekviXVbHTp8g2AnmDVc55MSL6YTR2ptlIV9kcmWMj4cLPy5Eo7RrAr8Ma/E
+N7y3VqmS8Sy8PepBG8O7K/Omne84oNW4KtJA6kM3dyAQcyb9j5wPkUdAV7jpSdgrySwa2ICzzbCe
+Tacc4hFkg7b0n2YBxxisG4rsBqq/+91gWPfcu7r1t6OpMboMlCQma6hxUbsBwlw/TLrs/K1l1FQf
+gPsoEcKL1rm3AP1fWVPRpYfBoTwAKF652HkGOd60Lc3Om5xBcbaCxKLlGlhj8j1urfjWGWDdrrXR
+YHX2BcMUqBgJrqICxs5DPfTLcEzHgloEOwziTc51mmIxQC1flWPvXBJDA8nKU7p9SzN2dwxewmTY
+BQQ+78LIFsa6o8+FecwUSHNVOwb5wKxyrMuYOTGzgtKXXC5uYpFPHKvgrUiAQK3aLJr8TZRTtrwr
+5Vw/NlbVl2eQn0V4IJgGNs42bPyZqTAQIFL4uDd4MBg5W5VLgaYDh+yiJv8YXDTouc0eT1e3jttS
+BQeYP/qaKoj0VXiD9Qa8ksrX0Qz9Z68n+7ox8qij80CD/qubgqG8YfrRrUP6acItQ6QLhauS14Dg
+iW3p2v0+AvrJd5rgEiCroAK76bol+WwTB0s/J5eV1WXEh+fw3i0zZW16KZPXecxply5JgZP/aR7H
+IQZahSNambsskeb9NFUs135CGGIgekDkYi7TM8nAkMsyAWvYoME1N9gplDxwHYC308NSj6IwWSHs
+S36iVRd5RGwyMTGnEZlTj9sw0yGBxAlpcZ9RDAgJMx8ZwedDi49dW1V3nmfOJAl7MWle6/c67SkE
+GUaigpbtPppyda7xxxYOHdxYmajjZjRj3DLuCRu8XEthN4JO883tw/ZyQZt2y5A8uy7MhWoS6KXx
+217Kv4NoKQJPoqUUvLe4UDdGvZSF2+/F4eDgwTqgQFAonr6Xi1dLz3gA6KXZJ+N7/bg1Ave0W/00
+YOTfpM0wPJFcQ4rw3+vLO/rLr0eYrsUBpQY/RZc5Jbl1g9rz9r0CPc1s8ZWqVorR3feS9Pq9MB1h
+zvrmGibcfq294ei9l6tHHAbv8PaVjGlxZl9N70Xsqkv5SQTEvWlNhJUuB7X0tjuSWqPVOC517m7l
+VQ/yveQdCx+F7/l7+TslsCQlGKrQruLALfgFLA7U2PK9Nj58r5B3ljZ5571YHuoT6xw8SGBDXa2a
+bkvefkbFrExHXCeaaqNjSaixONgEks+JjVU0RwQT/3rh6u6rkWAa2k5tEqA7Rq6zLeo8O7ejFEUP
+gS27X4aGjMKwMo57F5MbiU90G2KDKr83QD9L/Gjp/BinvfWc1mk2bfzIT1/DBHLXVpEsqlZ1GU5n
+IVVz6CxNZT4VnGxwunpJ89W2O8Wt25etWIfSUuUqLkb5NKWBf9oQZLkDSRTfxmkUUf9G8+lixPC7
+Zp0bXXbaelnYrWcKxag6ztV4HRDOEesuNrpzq2f/+hgZaXhe6IFq0ViQ2d83dowe18NNeXZjHgjb
+2auJGuBxwUVih1ZzaKFPKgC6w3jr9Nw066RGxqI4VaEtSxANN0jzVbKOMzJet90g7L0j+ZlBQbrc
+Gsh9tCy2g1+9IVKuEgdvOCRspI6rQEPV21I5ZbUbSUd1ulkMtQ3Z2i46J8/id0fZzSac+7JsH9se
+zxL3hcKIg3lQrbDCmHdC++mVcgno0b2BcXVlzrW6FOZ4YtDPxAeZATwxhc5gSzt9tnj+FIgD3HTC
+fOzcTD8MJgcqQsQpJQOkuYA1DtTVM4pRhAdts+5O+qzDW1lQ1RWu7MCubIhVE2RGQvej3jrW0hzT
+z0xZ0NFZPsC9Fs4T17+XnsSD31x3WJAEbDwIT5s+8icWqXEiwosVNF87lczrvVk1cbjukWO4lxtc
+UWssDTTZ0FFQbFygPzXFxyM3EBE157uXYkrelu5op2uaDsm5YWSFgENW7ykhQpbgdsNrBIMCLsZO
+dmlBvCMcwnM6oeCGVFjCHywC5AAbXYdfCjFlgehpv4JrQOM5BdG+MbwCCqIKV9Fui6bVDdRVlFzv
+5kHVg2luAj8DW1DjbmwhxPTE/FOPfUYxTDw4Pbc19GqmS+UrP6PbQ9XzzIfYqFu9qesEQMyYCBfR
+gF4zKnUArMXFM0t/xaPBjrrX2st7xaKSNneEf7tsXUmL01cwe4MAlUFka5N0sjolehcTmOsdO9gB
+a8VqGnm+d2cSg6CjhtkzREVbCbEmhjZfeIi4LaY+o3rmGR5g1HZMfY3WN1TbZF42Ql2QecaGFCyD
+hJzMzwPaHmsNRt2p26q8R9eGzsWzbQpH8C1Fa6KNsZhDW7XG1HgqJvy262LI8UAYM8RPqIRBg3Tb
+lGS1vNQvAF46GSR5PQJiWTkNxHJ6M0MG+4PLd7lGsIqvUPXqHYU9abnpwQWPO+6XZtjyzmPqnJye
+RYZZA3k8Zg/ma+PLJTLL10oEs6vYF1gcaR/C0Gge+5DMTpq7nPZGpxN3jVmD63YjoB2byq26i1FS
+8cHHSRyP52rbnjZ8aTlYggB7g+7QfU1yv0jejbhBRi7oyzSCotzUZpWQJ7Eblkgp1XBdJsKivZtM
+tD510etbPNJFWu7YnrGf0jIpXijkYWM66ZRIJe+pnHn+FjO1NbHZX5PoGox1yb422CifjC8m3jLd
+TPh6iH0LgogbEComU7HR9tamHEKwAu4sgcShdGOr60uHSvoI9qBwc/cCYyi2spEFn8dLGVNCBzJk
+FXjEHjHWmOkz4yFK7TFIVCdGb5gACAfsJqsyY0VaUU4uXiZDMYTopjq4JV2O6Y2OpPIGocgMtgkl
+S/bKwi5MT7SdzktvemzuwjFaBOVeB+pUN9NwJtIUhH1TFXIPCgMtWUI+g50hHSy5bbEUp83WcrlE
+OMZfLZaUb1nf9/beMkVnrD29BP3wjeZcJn6WvOVZ7JT8XpRCbni6VecwNzN1oI4jZt/Yg9uhhw4L
+qA9sUW2lclnHwxlQzBrshb0fu4jSXnweCl6e2VBjaHSCzXEcOtWRcsG4wqfn4d6u+6HeYj9iiQpl
+pb/3UduJHTldJ1u3oxRPQiVgUook0AFc9DZ8DjWN6juH7W66Mym3w40MW0nuQcbBgHIj2mB4xzNJ
+CwWP9iVsUvOXxpXs8V0cUTVnCRH41HLjxdi09Nrjn/Dzlsec6nFoDYNXfhdk/Ad40RjDN0lfZfCe
+dddVnHvy7kUlmoNQZ4ikWQOXyV6c2rKAqNixvC/ypZMEZ5ei2U3UXH+hnVm8kw4784nJpVdDnQXX
+uSqyKj/R7Plg4aRw6twUG9GyiIxcCeSeubmMEG+WYMmp9zJolbsqCr1AlJjv8ESMKte6Jp8w8WP2
+rbFz/C7f240UAGCi9p+q03+mCh+mCsvc01PMlP79XOGmyN/+8f/yiOnmd4S2djq+/fd//f53/xwu
+ON4XRTCGSSqzPwRfizHUP4cLrvuFGQFzBUbUzPqZPfxruKC+YG9E+GF+gAYk3nNSv08XLApQ2IYx
+xCPCxGnX/DvTBVOKT+MFekUYVriudrXkHwaVP07KdNvX+WzJZIOB97su4+LoRmV3HCJrya73wKva
+WIlz2olO7VRa26w3NYs1xhIKjcynvCrbJ4GvodhQlgpaxA77Y5CHzskM8Rh4aW9Nu9I4Ai7KKAfr
+kvOeLTmjRoNTGxxxefDciFWxg873NZJ1uSbb433jedJvtV1YT00UlzsU4eIY1dW0x/foP8Z8EsKJ
+gXCW4Hf7tXRkw6TByVloBfnlHiH+GXMVEItYgeVEE9zjZcjTjQYs9i3rzOHKr/LGXcFcj59x8Q87
+g83wQ+TKgSysZkfCZ7esu5qiNBBRQU/o2DehuyWmumCOCMrX08lLCdsEp5YYHhGJBlAmZERx4Ihy
+O3FQBic1nxSUHZLzToIbM46PY+HYa6fV2QvlGL1zoNGkeeEcnHVbapbVYy+7alghZJ2TOWn2zGuJ
+3nR8K6GzhFZbz/f3BNQs50XQWvE2u4F74VUcI7bMD42BvoOmeei6rHjKDeY/KXUdOxNf0SbECbpz
+YVOzGRTOdSU0vvzWj+g8K9tDEeuE8DTZCTfAqOYWvb8LGXdaK3ZQ4S8JKZE3fGHGVx7NFIzURIWZ
+ICxVp358yeMR5IYymkPmAqvKCtIubeiGJ7DmLmGV/H/qzmS5bSxLw6/iqD0cwMXcUZURzXkQNcuS
+vEFQEhPzPONtOnpdT5Ev1h9EK9t0lrOyU15kc2NLpMCLC+AO55z/+2+gI2w6SvtV9PHUz5RUH0BT
+xWtTm8C4y+c5ZuT3vZRtJJMyo5zJxc5BdCfsP6G7YG6p13Rr1ukYiLfJlR7yptSC2qLsYOKa4RhM
+75grvTBZFBpevs5Ukcq91WZwqeKNU5bKlZorzwUBomWkBdcUkeRLuzKVZYvpwLwv42gK8T6YE9tN
+yFabEQcww1ni4erQwDah9qvP42UKGYrQQuQqSxPh6qKkPgdpKsZ3tMOyFKhOXudgG9KqW6T+YnSw
+Xdt6ru8SKdNX7HnsezojfAiFTamwrkhrDx3YHExUw8XCSXSUNbCHBw5jcQc0SHLJk8UPcutWMO4w
+ResLlu0qzrSXgdY468x1uzsR5+ZSR8Rw7kaR/Qk37qSFYFw250bqi02tDNKnIemrc1sJCK4E/Wcj
+roDq2x48HLcu1YecR2mR9Zq4UK0QZJKSefkUdWe5tlGLPWpOMwdKO/MqpSDmhQoXQZZhXlH60G+B
+wTmspeJ8nSVNdyE0KXsQSX7bEy+/rKy6Edk0DrRSui3A4/TaQq7cYIuZiwqXZlTbEfI0pwVWwhu/
+u5Mq516CQPtICas1x5anXWBTASxUR/utGSN90oeyhsKHR3YENr6CU+V0BBMeCYYuH7SwttvLzqtM
+u9bB77O4WISiQ/EN1+TMauyRbskHWwEVk+pOeI0hjneEQYJMfTxCMkdO42u0rUxH7mRlwfcsQIjK
+LhDJcBSku6HSHkIc6mblKIhPQ0BRLTEYambGP2aT6OP0FxnonHTXzM4D07M3ZusjUY+7CKi/ZgTO
+Gds0qUBmCUt30kZsNzKhSz+HMdJuSg7KO6jQ1apCE1oK4jHA9FcDtNpNF6gNPmqmdCXHZr0KyzYm
+HoLHANFSIm8tyEQzEQ3IsIIl4UQGCgTjMIpvUI1BJ3RCdt1GGDc3FED51IY48Kih0eVnQ+P5y6CT
+sfAzS3Pe5Xo1wyURmU3SeBdmoD0Fia3j4+gOS2vwYqqrKv1z5GuFPivdgk019I+ZwgmDOfez9iIz
+MJHkljBw0Mx91vBZOewxEdzxIGkr3+uDS6VRzIVEVeBCfiXmYr13HcZAW9ltQ7R97fsUhyNYNlyk
+AAmLPp5RNoeR190jrArWIFbCcsGS132xCo3qRFfXGTLF0AtAguDj+kmJZvncFRrGyw5YQ5jqQAfW
+4dByTIDmyUyzub5uHQPGBJyJ+IyI+q3mROg7tQ5j5hb7IKi8FBsCLOUWGqRhVRYlEva21+7QhY48
+iwTugAkA/Q47rGzTERZZYWwHQcDTs2mjckRVj/MNXArvGpshCJpDhrbdNKkYlIsecz+thU2L0zgo
+grLlbnLz3LsHJwCbTI7reHl8IsKWjZdWYprhhiqnJA8jllQFoEvVSDalYJzTPzaRpQjc07QuHsIU
+DEKAEukFgAptwuob/UyBGE2OkE6S/VdR25eprN3VZiVlM/xwKbMLQMtiN6LdyT5PKje+wHewjeNI
+Xbw+CW1Wdk9tDnU0dWFDhcIjDv2KYZZlSEcuw9StZYz/c/zGWYYqVdta4fHLaDRlDFsgZlTRjX+F
+DRBIqxxjGh76AEBTajbSFvoC54kI7hZSG3+RxZgBJ8BI4qJKplyb5CaJ/XRq1Kn82Fg2XkeZIsFP
+7HR17lEGKs8F8HHCwTGfb/MYAmYhEzibNNRqpYticNqZaQowliWC5G0siHlOtVpFRGkDjjFxTIJb
+gx0zk7LfLkRkW5eGp0Dj92JPmndFh2N4QD9tVXxm2KjVEpXXzjDc6KAN0TOxz6BAwClXmeZ5ysR0
+83QaD6H8eWC3sukbVcKsq6838qBCp1RNtBKZE5pXsESLZgJlJHrQgbdQxuhqKVE4OW0fDEjYn0yP
+nXTR+5JMlLeV8nU0mOa6UCX/ogbLbcyzXK0eS/YwVIeClt2Q8x/MqdwGCR6Wg1lf2y1Fe8u4ldB4
+E8acuXxsplQE8CZSqtoHU+3bJ6Xq7U098jeJaT5CTh8u/aaB91E6FIVHXJr7fGjY5AWBed16Qg5A
+Y3veskgDd+3w1LGk8mV1W8WKtcviwKSUOqAOZm6pNeoXy3LW7FQzaQUkIDirNVGUXCcBarPS1DGG
+VOhL0CTRp6a3lanQvXqnlJm1cT3XWSKZz6qZRjUgivAIgiUpf8qO5BDZSVTjVBUwTypBZj8NgVti
+IB4X9gaeCUmPKqxBvKYNNqQLwtnlRmmL9oKHvrtxapF9auSaaTgRHYvYDp/5wGX4meG1jMMORTtI
+NBNpU5dFiqKRefp80AdWfYM2bJBqW5fcc/2u7wCEKCnyJKSEIzHSETKVyYQ40g1ARPlTDb21nXB6
+0MBIeYxmZ8yqWk3ewG0adxmAXyR4QwU6KvLezl8MrcMTpQmthVmr6GcyoQQ7hbpShUVZzEpX1lg5
+z9Nele740X22rUh9YBtblDOVeOMLlcRgIEmgW/cI0Y1bbk9jl5spsSwH3BB2qOZVjG5xA7Gzv6kt
+u0coKDfZeqy7usdfy/okoXJ/GXcXFrFx1QgZQhSmkpR4wVQfHO8JpgfbVxJB2KxoRZTdZipS0A2p
+KWlXW348OoCW5ZPTJeFZH6HYaHKJq1aX6VOjciUHinl3EfQna+Q95epToznSpmI0m6pDIdYUAZmL
+oTPshQXMb0cs1zyYowS1s0ejsD7hGiQtJb1BHXZTTbbsawe/xhUgQfuiJVfBmKkFG1WzWGNaFF4Y
+owRmIrI4xgamNeXL3HApSYVAWqzcmuiu1hrRuQnMXuCfi9zGP9Mjd99wrDNuLmNlh07Fjryyl2aQ
+wgYYQsi5BDWqqctUP0ox3SWODP5UYbW4TSE7T3VZkS4dVgPTIbOwAFQkyEhK1V4pQsSrXm6tdYz1
+WWDXD3R9wRyaRrvYMIkyYyQczhjlpXltRebGrxJlRQjsCRWCewUqCK280sRrhKsNK/LOvKLqX8sn
+uazhcqGK7MzxiKUUbdrOPZMFYaQn5UKPne5mcHqk95HTbQ0EF3eloomZgprgGmxQTrqG8ZolMZHQ
+1HYGjKTJdDiV1ZyRQsX6IXWf2pFcIPvCAnMBPXHawMc89z2tYIUr4Ak4DpnPkG0j+ufClWespDtE
+QmwiKtE7zFAC58MQylo0SMlcloNulYu2vNAp754NZjK85EUhVortthtd18TCMmqJFZIt7Xx0rD+P
+GzuPwHiX8oBk7X3eDoCijHJtZJifxAIwMlzC3t0jL6c7O8aswpFtRF0WzjW4kRTriCDhVvb8asWA
+AM4mdmp12wyIApbCYKjeprZmf47gYUMsEETwKSiOs2VVSt5TEI5QGhFQk5t4o78v+CymdEmH2Uhm
+pzkM1YCllWqbGME5QA3HO1HrNowl6orAOzoAQYA6USykCqaa2XhcufatZMkBNlt2l54lFmTfmVnZ
+1jqsNfRtCQi0T2Vlaociq0d7Hqrol5lQ03lHsckmEmTJpnbQaN2isJRRDSUy+VDbnqinjM59uqgY
+bdUJZfXdZ2Kr4T4124ZBLqaDip75bJI3UnOjpGm3a3JdbAY/le6alKBATd7sWiPRwbIQD3Mfv9PA
+OW8qJz9vUVHNRdGAHwzBns594ZR49tloo6aU5nefe69pH920j2+IwAcb/NydG1shczohdaF+8tCx
+hxxP1md9AcJ4SrCQhLWLY9witvP6DK2iNe/IxRZT7EeokDQaX70s0X5YLCb7FCWgHpJpQf9EFMMN
+riBmZ4hjFAtacC8JtEjWYN1iWuR8BhkZYUEnl/jvmNkFWgxvleTRTRnpyjbxEEH7dkviT7cgDGVq
+LkiCR/mZQ7KB7LnduSj79Sq/bUEmUQ3tNSXl6Fm38GoJaIdDsf+qiGSk3iHB0otObburQAKDNsGm
+071JPSe8dfqqeekYl1HIYeIpQyzAFIXJQ0LFMWRh8sBAQkMGZhPSMNR8LBAC4Z4WKmncsBkNu6e+
+dTFQMWuCBx1I7zWWZhue1sybS3Zqu1PPEIhB8jqTX1hkFystB6idsYJn56QLn8oC1CZXbunIrFsU
+R3wiQeTtGtRUM7QQ3kax4dj7ZbOWa50UUZR1eNTqubbgJlNg8wqsNXiuisuO0NcyKyr3kmph4U8d
+Cvl5AvX6yYd+u2bJrQI4JThMdt9q83PgbN3CUP3iqZYqrMgDxzp4qYcBXt9jbWfKEXNnU/jKObsu
+jLU6kNawRmvDT2CBK2Y/DbXE33atai+1qI8Q7HgzEFxI1PrM3pKEECQytCq5dgs5rxaZppNjL9i4
+YInUzkMvla5TjbygXHUYDJLl3xJU6icthexV7N4yfl1VkmgnEohW3ScgYVC6hyqkp+jcN9yXuIzu
+etHPkJTIOzmp8hlm2cWu1gr1sfUdgYcM7q115RgT1HfXbemtpQy3eepKNogLJzYTjyS8K/wlFrGE
+C0/hP7edsnNT74J9M1nQEGNZmHxQa6lowyTPMbR7D1v1QSbXAiRmDFAvArt9zBxzW2SQSHue2CWQ
+XGuaeH2/EyXAgEwjMBEgRI3AOxYiHJahLvvzIEn7YVZQ4lG4trFA3Vye61Xaz4HSautIq3DVteL8
+s5IJsWitqtyVhuOQtnEhrDhqoa0G/BxcCO2N/DPs1Oycu5ZRSgNT03jucCfILW9qKQF7qHhmfVWo
+TXJjkWWZ59iSTsJBB1ehDbdDo2xN/BERDzZswyiNRsbaatuwcR4G30IR6Eod1QY1jkvZgO2wFuD8
+2ZUD69bEJEUew68pCjajngqU3kXqd1WNThkNa5iN37TOzKb8olp6BXwTKVXqF+K36bnqZd2y89pi
+mcIRW4SQaqZsB9WtGTn9LlPd8pzyg4Y8ptWYN0Vj1NvQMzFMlzvz2aTEGW8CoWCoAovUSAGlkpGL
+lr2W+QtbG4wnSYEiS2lWROGM0MnPycEGTSnr7FK2Wf+Gxr2qeWLeN82wjhLPQBcpsMWM8ypGaxYo
+51omIX8UWTaPW9ta9b1R3UlOpy5qSbWe4w7IYJz39kUnqhBITkiqk93dQe5UqjbwNyx3EZqpeYWB
+zUa3Uv2McnbyDVEcd8vIC9RHWUn8eR/qbJf7foTkUw8Apb/SZgiZw0cSUNEC1xb3ElGgtWNLEs0V
+3w0vm7R1nju1ki4JearztBX2Fdg+9RJmar4wWKWuIgcJ2WDoVIQZVbhxfO0xRSG2pJaAGqyu9Q6B
+W1jAs63+mkozbqQoQ3pE4lHd5xY916HgW2O7FhI/kYsbtzeQOIQhDUqxBVOCPttZGalzbzBJzDCe
+nUkeSnskdHU/QyE1qrOsYJrKdnERCSnj2R9aAQpF67EddoMhnZHgzaZBkmFa63mJQoCuxy5ZGS29
+whxbJlZUuApTxYoLC06iaTw8BaRZ1wGVSzvbaORV0OXS1ld7by6MRJ6TEGu3/eC2a8LMJcImVq8x
+6MQVtPPhMyLslGGsSK6HMehcZ32HjjsobhEc54vUcpds0YOt1wIEJ0qlLinMqLl3YWWx/mzgrEg1
+PYI5tlmheKb4fmNmGcFFRFCwRzrzri8GwLWx58Kv1sDGY+03ejzi19wwE0K4RCU9qVzVvceY2rox
+JKmhWKyGkJ9CKbnApcc/DyKtbSfgRcQ6cdq0OFYl/7/MKX1p9Gxf7eeviZ2r+lD014eyjqryp78/
+d/+B8/X47iUAuOo2/XMf+v0DfUkp3fbZ4R9/e05rbDlogeunydfZJpVUzkmC6rVFr839vQNEe9JV
+9QtHHktV1dfXmBWKUEm+vaGrH6na5mWOIgpex6/6qm++d/a/f2LHbvz9z5y0ff9CSebMLyvmuerr
+kxeQAklV/ZHz/+YYX50/yBCMPyxSQoJK3vF12g2a+pHyfVO1j50hy8dS479SN9iWoNr8nd2gftRV
+KosRKRyvNkf8+m6gEBrOCRlC0h+vr2PH/4W6YSwD/4NPw/fvBsX+CLTa0ORR1DO+vu0G9SPlqgaf
+UY/v/wXvBhaw774bzI8jRYdu4J/X1zd3g/VRp6wdecVfthvGfPt7u0GVPyLbQdrFzf71w6ArHwVK
+OXR69vEu+D8MjX/gifl1iplSu/vyOrn4Byr2fjsHfe8Db6Prb9//MrKOlQrMHSefG6ea41cfXie9
+8eefTh6Vv4+N/+rN15+ZCl+/5suffzm/337zyXe9ndTbL1f+odgXz17/+kb/pZXn+5gp6j+fi8PX
+w76hMUT/byv+8beTNn51zX/3oNHeTffl24HG/mADwXV+94Hj/ZAm3xxZU35Akyd777TU5Cgme2+D
+F4cX+j768K9mWFsZFxjv/YZ5mf3yz8Kv0g83e3Z1bwc89jmOwW+/OK51/szVXKb+L/91ejHFKz/4
+vU3fjagy75f/Pmk0BTQ/otG7PT1C6oOamA8v9E0dvXXE2DOMrSP07P0n8OuXvB3seHQWdW+/+PP9
+DsntlOMmdGWU97231Rx3/8s/n04KqwQyvh/wfF4eimQfP9XPp5cUntwP6O1rn0t5+LDZJwe/OP2C
+41r1vR0zfsGSW5Iv4ZY5T4vqZGhkRSwoIvux3/LtjXmcWd/7HeNQsP8wZRNV+MnphUYt+wPGhBue
+2g+Xe+rM3zrk9cY/Lpbf3fpD4frZSd+zGqAQ7919f5s+0zMww94ONbZaxRuL1cx7W/19bvuvE/6f
+m013XMLyw5J5xD9t93FN/t52f1/A+c52X6e0OD65+8ZtxI94hH6/NvSd7R7Hx+8SNN957Onh20Hd
+Vo2RAfDv7r9/tfL76WSJOB+bdrqU/bcfYEU6Hvg5olk//Q8AAAD//w==</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -2707,38 +7770,6 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.1</cx:f>
-        <cx:nf>_xlchart.v5.0</cx:nf>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="regionMap" uniqueId="{88489B83-DE67-45C5-8A85-66C552A48589}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:geography cultureLanguage="pt-BR" cultureRegion="BR" attribution="Da plataforma Bing">
-              <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>BMFRCoAgDADQq4gHcBV9SXUXWTMFdeEG7fi9d6BFbJSms96GRLTTF9U3AggW6klCrzhZOGtA7sA5
-VyS4Z/rqeGBb1h2wpKlk3sH1AwAA//8=</cx:binary>
-              </cx:geoCache>
-            </cx:geography>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="r" align="min" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
@@ -2746,12 +7777,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2788,6 +7813,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
 </cs:colorStyle>
 </file>
 
@@ -2951,6 +7982,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3468,6 +8505,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3983,7 +9536,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4499,7 +10052,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5004,7 +10557,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5509,7 +11062,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6014,8 +11567,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6026,7 +11579,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6049,7 +11602,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6072,7 +11625,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6080,11 +11633,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="850"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6109,14 +11662,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6127,16 +11680,11 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="3175">
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6153,7 +11701,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6168,8 +11716,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6182,7 +11732,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6192,13 +11742,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6217,16 +11767,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6297,6 +11849,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6328,8 +11886,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6384,7 +11942,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6412,18 +11970,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6433,9 +11980,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6451,7 +12001,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6467,7 +12017,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6481,7 +12031,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6514,7 +12064,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6523,24 +12073,196 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33FCD94D-7419-4D6D-8902-C8F0F0826B7C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{32099867-0924-4456-9375-595475BFF35A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9652000" cy="6016625"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80382BA5-5DC2-5D6C-0AF8-69B5A16C8B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9652000" cy="6016625"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44652845-F17F-FEFF-1319-C89AEF71B7F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B28C3A-95A6-BC3D-C9BF-CEBD44FEBCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="9652000" cy="6016625"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>75478</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31216</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6569,54 +12291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312164</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>174650</xdr:rowOff>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130388</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6BFC88-2C37-4BB2-8268-90998A2B23DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1008529</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -6637,7 +12321,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -6652,8 +12336,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7868210" y="190500"/>
-              <a:ext cx="4579844" cy="4997824"/>
+              <a:off x="12808964" y="54427"/>
+              <a:ext cx="8619563" cy="9865180"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6685,16 +12369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1361</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>341538</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1115785</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6702,6 +12386,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07980941-7CBE-477A-9B82-228DA7E6D345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>374816</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75757F21-4FB1-4D76-9511-D0DFF329712B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6721,52 +12441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1259280</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1061358</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75757F21-4FB1-4D76-9511-D0DFF329712B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1197429</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>172193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>979714</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6785,94 +12469,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="272141" y="136071"/>
+    <xdr:ext cx="12273643" cy="5061857"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D27E512-E288-4F12-B5D4-A624BE6E2F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1326696</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Gráfico 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE735A-56FD-E2B1-6049-34B4437BD167}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12558032" y="206829"/>
-              <a:ext cx="4561114" cy="4991100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Este gráfico não está disponível na sua versão de Excel.
-Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6883,8 +12517,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6901,7 +12535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="650422" y="285750"/>
-          <a:ext cx="5962649" cy="3429000"/>
+          <a:ext cx="5976257" cy="8763000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6946,6 +12580,258 @@
             <a:t>-- Colunas: mês, leads (#), vendas (#), receita (k, R$), conversão (%), ticket médio (k, R$)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>--1 - Receita, leads, conversão e ticket médio mês a mês						</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>-- mês	leads (#)	vendas (#)		conversão (%)	ticket médio (k, R$)	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>                              -- 1 mês leads (#)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>							  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT * FROM sales.funnel;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT * FROM sales.products; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>WITH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>   leads AS ( </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     date_trunc('month', visit_page_date)::date AS visit_page_month,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	COUNT(*) AS visit_page_count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM sales.funnel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>GROUP BY visit_page_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ORDER BY visit_page_month), </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>                              -- 2 vendas (#) receita (k, R$)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>payments AS (SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     date_trunc('month', fun.paid_date)::date AS paid_month,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 COUNT(fun.paid_date) AS paid_count, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 SUM(pro.price * (1 + fun.discount)) AS receita</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM sales.funnel AS fun</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LEFT JOIN sales.products AS pro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     ON fun.product_id = pro.product_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 WHERE fun.paid_date IS NOT NULL </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 GROUP BY paid_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	 ORDER BY paid_month DESC) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>--                             conversão (%) ticket médio (k, R$)	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    leads.visit_page_month AS "mês", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	leads.visit_page_count AS "leads (#)", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	payments.paid_count AS "Vendas (#)", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	(payments.receita/1000) AS "receita (k, R$)",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	(payments.paid_count::float/leads.visit_page_count::float) AS "Conversão (%)", </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	(payments.receita/payments.paid_count/1000) AS "ticket médio (k, R$)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM leads </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LEFT JOIN payments </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    ON  leads.visit_page_month = paid_month; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -7020,6 +12906,81 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>-- Colunas: país, estado, vendas (#)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    'BrazIL' AS pais,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    state AS estado, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	COUNT(paid_date) AS Numero_Vendas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM sales.funnel AS fun </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LEFT JOIN sales.customers AS cus</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     ON fun.customer_id = cus.customer_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>GROUP BY pais, estado</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ORDER BY Numero_Vendas DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LIMIT 5; </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7100,6 +13061,90 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>-- Colunas: marca, vendas (#)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>-- (QUERY 3) MARCAS que mais venderam no mês  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>-- Coluna: marca, vendas (#)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    pro.brand AS marca, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	COUNT(fun.paid_date) AS "Vendas (#)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM sales.funnel AS fun </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LEFT JOIN sales.products AS pro </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     ON fun.product_id = pro.product_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>GROUP BY marca</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ORDER BY "Vendas (#)" DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LIMIT 5;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7634,7 +13679,7 @@
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7669,8 +13714,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,7 +13727,9 @@
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" customWidth="1"/>
     <col min="13" max="14" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
@@ -7692,19 +13739,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7715,46 +13762,47 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
+      <c r="I3" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
+      <c r="K3" s="16" t="s">
+        <v>25</v>
       </c>
+      <c r="L3" s="17"/>
       <c r="M3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -7767,7 +13815,7 @@
       <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="18">
         <v>259.29000000000002</v>
       </c>
       <c r="F4" s="12">
@@ -7776,11 +13824,22 @@
       <c r="G4" s="14">
         <v>51.857999999999997</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="I4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="16">
+        <v>734</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
@@ -7797,7 +13856,7 @@
       <c r="D5" s="11">
         <v>35</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>1676.45685</v>
       </c>
       <c r="F5" s="12">
@@ -7806,11 +13865,22 @@
       <c r="G5" s="14">
         <v>47.898767142857103</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="I5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="16">
+        <v>142</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1">
+        <v>248</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="S5" s="1"/>
@@ -7827,7 +13897,7 @@
       <c r="D6" s="11">
         <v>44</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="18">
         <v>2278.5075000000002</v>
       </c>
       <c r="F6" s="12">
@@ -7836,11 +13906,22 @@
       <c r="G6" s="14">
         <v>51.784261363636297</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="I6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="16">
+        <v>110</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1">
+        <v>237</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="S6" s="1"/>
@@ -7857,7 +13938,7 @@
       <c r="D7" s="11">
         <v>33</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>2602.7686899999999</v>
       </c>
       <c r="F7" s="12">
@@ -7866,11 +13947,22 @@
       <c r="G7" s="14">
         <v>78.871778484848406</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="I7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="16">
+        <v>98</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1">
+        <v>193</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="S7" s="1"/>
@@ -7887,7 +13979,7 @@
       <c r="D8" s="11">
         <v>32</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="18">
         <v>2297.2240499999998</v>
       </c>
       <c r="F8" s="12">
@@ -7896,11 +13988,22 @@
       <c r="G8" s="14">
         <v>71.788251562499994</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="I8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="17">
+        <v>66</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1">
+        <v>136</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="1"/>
@@ -7917,7 +14020,7 @@
       <c r="D9" s="11">
         <v>68</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>3631.0958999999998</v>
       </c>
       <c r="F9" s="12">
@@ -7925,6 +14028,16 @@
       </c>
       <c r="G9" s="14">
         <v>53.398469117646997</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>108</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -7940,7 +14053,7 @@
       <c r="D10" s="11">
         <v>119</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="18">
         <v>7911.1924799999997</v>
       </c>
       <c r="F10" s="12">
@@ -7949,6 +14062,10 @@
       <c r="G10" s="14">
         <v>66.480609075630198</v>
       </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -7963,7 +14080,7 @@
       <c r="D11" s="11">
         <v>142</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="18">
         <v>7477.5559199999998</v>
       </c>
       <c r="F11" s="12">
@@ -7972,6 +14089,10 @@
       <c r="G11" s="14">
         <v>52.658844507042197</v>
       </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
@@ -7983,7 +14104,7 @@
       <c r="D12" s="11">
         <v>394</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="18">
         <v>21508.476480000001</v>
       </c>
       <c r="F12" s="12">
@@ -7992,6 +14113,10 @@
       <c r="G12" s="14">
         <v>54.590041827411099</v>
       </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
@@ -8003,7 +14128,7 @@
       <c r="D13" s="11">
         <v>589</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <v>33179.246639999998</v>
       </c>
       <c r="F13" s="12">
@@ -8012,6 +14137,10 @@
       <c r="G13" s="14">
         <v>56.331488353140898</v>
       </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
@@ -8023,7 +14152,7 @@
       <c r="D14" s="11">
         <v>1073</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="18">
         <v>58987.786489999999</v>
       </c>
       <c r="F14" s="12">
@@ -8032,6 +14161,10 @@
       <c r="G14" s="14">
         <v>54.974637921714802</v>
       </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
@@ -8043,7 +14176,7 @@
       <c r="D15" s="11">
         <v>1254</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <v>68274.090230000002</v>
       </c>
       <c r="F15" s="12">
@@ -8052,6 +14185,88 @@
       <c r="G15" s="14">
         <v>54.445048030302999</v>
       </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="6">
@@ -8077,29 +14292,20 @@
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>44256</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="0"/>
-        <v>44287</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="0"/>
-        <v>44317</v>
-      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="6">
         <f t="shared" si="0"/>
-        <v>44348</v>
+        <v>31</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" ref="M29:N29" si="1">EDATE(L29,1)</f>
-        <v>44378</v>
+        <v>59</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="1"/>
-        <v>44409</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
@@ -8110,7 +14316,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -8129,8 +14335,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
+++ b/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\Project\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CDAFF-A0DC-4873-B824-771CFF79F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB275AF-42AF-4823-856D-DCEEDBDA326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECEITA" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>mês</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>RENAULT</t>
+  </si>
+  <si>
+    <t>KIYOKO CILEIDI JERY LTDA</t>
+  </si>
+  <si>
+    <t>CLAUDINEO JOZENAIDE LUYANE LTDA</t>
+  </si>
+  <si>
+    <t>ADO JUBERTH VALTUIDES LTDA</t>
+  </si>
+  <si>
+    <t>GERRIVALDO ROSIELEN VALTEIDE LTDA</t>
+  </si>
+  <si>
+    <t>NILFA CID SILVANDRO LTDA</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vendas (#)</c:v>
+                  <c:v>Vendas (#)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2304,13 +2319,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$P$4:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>KIYOKO CILEIDI JERY LTDA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CLAUDINEO JOZENAIDE LUYANE LTDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADO JUBERTH VALTUIDES LTDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GERRIVALDO ROSIELEN VALTEIDE LTDA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NILFA CID SILVANDRO LTDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2318,6 +2347,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3548,2064 +3592,2096 @@
             <cx:regionLabelLayout val="none"/>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HzZctvKluWvOPzc8EnkgAQq6tZDAhxlavakF4Rsy5iHxAz8Tj33V9SP9YJ8z7kkxSuWbkc/dMkh
-iySGjdzD2mPy338M//YjfXqs3g1Zmtf/9mP42/uwacp/++OP+kf4lD3WH7LoR1XUxa/mw48i+6P4
-9Sv68fTHz+qxj/LgD0pM/seP8LFqnob3//HvuFvwVHwsfjw2UZHftE/VePtUt2lTv3Ls5KF3P4o2
-b+bLA9zpb+9V9ThtPr5/9/gzi3Ivqpsq+tGYf3t/d/3+3VPeRM14P5ZPf3t/cPz9uz+Ob/7iQd6l
-eNam/YlrDco+CMYcy7Ft8vxjvn+XFnnw53FufbCobVs2cX7/2H8Sv3zMcIO7//rP4t31Y5sWf35+
-6qGeH+nx58/qqa6xnue/h9ceLOL3Gk+wI0rfv4vqwv3NKLeYl6Bun9f8x6Eg/uPfjz4AF44+2ZPV
-McvOHfrvimq3eo0rbxSV6XxwTNvi0L/TomIfHCYsnMN+H2d/Ev8tql2UP9bvVk/VY1T/eeS/L6zD
-q4/ENa/zf4C47tzX+PJGcVH5QTiODXHhz/PPkWXZHwQ3bUrEaXHdPebN4zv3sXmsILjXHuyfWNfR
-9Ucim9f6P0Bkt3evceaNImPkA2GOoA5Abh8EhfmBmpbDcPC3ZdE/if62rNuoeLeqHvOfT+9+Fu/u
-WqDUPwfo09I6cYsjgc0r/Z8gsO1rzHmjwCj94JDZc5n0tI2xD6ZjSebQ33Ij7E/i/xAchLZ9zJ+i
-6l/wYLPU9q8/FhnW+v+ZyGYPu6+7B4//1uDCJB/Y8w+BwRwYFPvwWyLSOmlQc+jz+pOctqI/rzt4
-6t+R1P+70OGfhxV/RV4eUHzxHLLtRRavH/0zJDm69EA4B+r2p9w2P//2ngpKgGF/hYLzTf5+5W/F
-v36sHv/rf3//y63sXfT0WDcIDBn/IB2OUIJRSi1hUfH+Xf/0+5D9QVrcsWxbUiIJMyHdvKiaEJdZ
-Hwi1uSSASmZJSwo8Rl20z8fsD4xQRzicU5PZljSdv+Ln6yIdgyL/iyV/f/8ub7PrIsqb+m/vmU3e
-vyt/nzc/Lp6AculI26Ymoh7JBcfxH4+3CNJxuvm/En+SUZ7qVKU6rD6XZho/VGYb3PO296VyksZo
-NiaR/ueiJNbPIA3G+4zGMlKs9JuLoByKX7LMg+1UNmG9JLE0R5dzs0oUkbUMPd/3J67GcpKlSpiT
-pm43UFs1aZtc28bQci8snGFQsqyi70NeBInbt/kgFKmrIlw0vplNHhl9/S3Lq+BbbaWx43YypZlK
-6iFu3JT5rfbqoqh6z2dJetkXdJxU3kYZd3WV1KlXxsZYKruojcwlcWhO226Q+aekFG2nhGVrx+3Z
-JD7ZdRvXSiZEEMW6ltyyabRNlfIy/xglwRRejvBwiSeHiD6QYEr1mnGeExVyI70e06ivlrXv59Zi
-ogNda93nqWuQKC1VlVdtfmn3jb4jvmlPnsEH+sOxM+eLIUp9Z/glGzw/m5JWjY1ZXzbcrvgdIzaf
-VjojCVF1b/uDygybLQMjSayNZbbTNSVF/y2juqzUlGtrx5oienQ07bVixB87j3eQzLasC/6p6JMx
-8rRMskhZVVP3ntMlrb9iMksMt63toVMBy8G32CmzS9Lk0vKcwE+9IZ/IovDr0VR1avFvkWhDA+x2
-Mkf1iZNOriChEXqWGQyT6096MFQfRGapDJ6b9wWPplhJFlS51zesumlZZhOVTgPVbtAHrf25LIIg
-AzFa/CrzSofruDLM0HVyYn3lpmjaDQ367FuSNi1TaRU5m2E0h8DtptH/YhklbVVnmEmzYFlrV8rp
-xlCupDHWsWcHNIbapX7Su34uQq4Ko0hMN6oH/8sYBCJXXVwHzBVpaXySTR3d+FXJW3esIsO+Cuqh
-CFRViyly6yarpUsaM9WLMTH4qnX88iIfh8hYVCSJwKSpHgw3ljK5HW2uJ9cMRsu4GAvbCFRpRp1Q
-DYujaqNNVvgLXdlp5jUh7y8kz0NfteUgvyexMYUrzibJPKvsytTlQaoHl6TEiFURD9kXMy36L0Mg
-2LURpmGmrEbkWEddN7tYRP5XaefjrzI0HOHGVZbJheP7TLilGRPLjWnex65wmvoThJSlaij7qFGT
-HjtrYdo6LZdBEwUPRmpU+Njvk0/pFDqDmmSS3rE467QnqO88GcymdNlVdXftN36D90GUek7U1mJp
-pT6JFTFMek1tP2yWpenIa5ZFw9cchitU65C2UA6rGNsUBe8b1fmtLRZhE4ytEq2T5VAfGTSeTvtx
-a9RJYquexGOhmipuqQqN3G6UHUnzuo8G+aPOw+EHyyq/8QKrMX7orA6/ZEX0mQxWUakkiKpQGROv
-b2ld9TdmRaZCDTQ2xSpJM126wjS6QSGLn5hbOVMaeVNFRbGgaR82KsqdsfEqNow3g9PJXzUjcaDC
-MJff8y7RhTsVSRl5LQ/8SKUsI6ZrtrY9qVE0QYQFZRlTTUeai7HPKg1d9BlVcS+qckGtLN05VZZq
-L4csHoxgSkY3i/Niq2NOpRdFac7dMS544Zmdz7YdwHPwBp4n1xXjvlgwkXafAj44QNe+rxOVDL4T
-KG1ZdrJ2IrojfpR+SyfHvAzHnhQKkEMKNy0gQjdJWt0qKuzqOk+MroZYiqlXpIBF5P0YUC8ddEzU
-GOo4vagpNW8sg7NfvNV+oiJjGgMVdZl1E0R+m3oFGZre6wlLnigfk5+GFYSRKlLWQKFNKsHqIbY+
-yzGI5NLvaRl6o9MNiRt2MeMreNPJ9jgLNPMGRvmmHsjAld9lZaOqsZZ6a0jtX7C07mKXx0nFVMHT
-eHCLPC+FqsKOVu6QMP114PrCH7gldm0gHbIIOiO2VM90EqnALvjo1qXMR2UALO/7kkq94YHZXlah
-n45QUZN96XQmMsVMIfJtSKS1jPPEF8s0SMSngmmz2gSk9Q2wzB/Whg6a1g2dkj7pIDYu4VcsCMEY
-g3Yd6rJfC+IHySqpfQFLjiwzVSwV2Z2oiURZzPDHRVz3/ieHplboRm1kl0uwvq0WTd4G9VKkoV5D
-fexq2ZUkFioeiT+5VezDO4Uxo4sujXWmHIj1pp+a8lYMw5B5qdT9fQMI/UwnpmE7sdl8q6wg2up2
-aCrXGuxQeOnYFZ+crrThsUw/K1SSVGanmtIyd0GSh+GiJm30KPnkfyrT0SjVVLXRD6bTSisnDvmd
-n3DwLaq77pEGo/FTy14Uar/6dBDG/ChKoGwQ/r0S+Nfb/7gqn/K7pnp6anaP5XNV6h/H5nriP95d
-dU9V01ZP73Bi/W7Z5j+fq4zH18wR6F8X/aPQNUd9f1W9juLI3zXKfxJkvnrwIAI9CLT3I1CGmPCf
-h59/xum/M405mpvP/3vkSe0PiCAtbluUWERwy/kr8pQocSEkpVw40rQkypZ/RZ7iA7UcIVHHRLpH
-TASf/wg8GfsghWmaBBruEE4d+ZbAE4HvXtgpLNNhtgP6XFJm2txBxXQ/7GRGkMc0qEalRZMyd0Jx
-uVq1bc6LbTCJuFnucebvCrMf574kxzmzTZCijJsAmENypSH9Nmn4oMykHsXPIU3MKVW5Hxn8LuBO
-Nf14nd4cNf8jqp6XxwXh0sYKhc3FzMf95ZEoT6oRHhuGT/LbRjLrXkdWjArgX/I+sSpOjuhICvFK
-JjjSB2JZpg1R7tPBRyaiJPPmYnO1vFp7y6VSy4vdcul5y52L9zsP/3ueq9Z45e0ulhu1wTm7Hd5u
-PQ/H1t4WxxZbvMTZy83mylvj6A4Xb3Cq625wt+VK4Za4/XzKssD1m/vl1WaDuyncTi3mw8vN0n3A
-KXgE5c6f4DXeLJRy1+4adHEu7ni9usLtLzwPt3rAJ5uFWixwx6/eTm0292qzcHHNYrFwF67rzqct
-cD3uN9/M/YgXO6wET3Q7k1+t3e3nxXY+dbHdqIV76Xp4jVWvVwUW7+Lplov1R9ddbnbL+UHxbCtc
-ees+4q5rnLq9vFuv72Y2gVHz1d5ul6mZ7J2Lj18XGT0jMWfOx/byrSyuak5i82a3vHrYLO+xqIX7
-6K637t0ZSqZ1qIPHunFsYk1dpbSBbiy9m6/frwJ1pRbfLl2iztBhhxmkeEEHILS/olrXZShnOhDR
-183tLeTsgt8Qyfpi51247sXrLDRnbNgzrhcEUY/aJ+ibjY4nENx5D/fQFsjpDAF2jnWzEPeEVNNS
-+l0ECjcXy4tZoZe753/4e/WwhG1cQVd3D7vlw+5KKxjO7uEBslQfV1Csze1qs1qtFqvVR3UJDdu6
-F2uo87ePH5/V8aNyL9eQNywPZuG5Nxeugn0utjfuxQW0b7ten1nOudXM4Li3Gk66zkfWe+N99e5h
-N+DYOa0WR/j6QiTzI+yRmIDkSKyAQ8uHq2ABs4S5X80GD7bd4mejVng1W3WgsMLtr3Xp9uqXt16v
-f/Xq5u6ciogZYF/TkSMAzhobWcqslFeb+6ul+2u9idRytZyZvlsC47y73QyTEAwEsVDAQHd+610t
-7737ze3O+1oA21bq68X3JW6ApVyt1Or+ugP7PKDI7WYFvVtsoeelWlw+xmp7B1F7HlXeDRTiwVGf
-FpdAkqWn1t7iBji03c0A87psxazrr60TlaJ9xieFMTATmgrA3qmvwNxO4bm/rZbq9jcyY3kA0QvX
-u1jiIRbA3defgKHg9PojHPmgSY792M+s/gp434ELuxnXdnfeledebDZA6/UDrAVgDcSHl1gtFhrw
-ulyC53A969kLeF8hnOWDt7m6AmBDb65uA6W+QIuWkAm8xGILK/wK1N6qZyzbrDZXm9unTaCebueb
-fr+/eojU/aS+B2oDsAMOXd3i7dMTtBGYv3Yv74Cx+HuzvlvcrX+5gPz1nbqHFxmUCtQKpvrl4+Xl
-l8vtevFps13/vLuBp3Bv4A7cxeLOU48f4YjWNxfeHUxULbbbj8Ds7Rqs98DVZzZj5b/AbjhXUIRv
-We/gl3cX7npxCVN/PvHzHT6eQeHOu7j5+hWK6P48I5HX7R014kOdsAO/MCRcDLzkBX6hu6udB5cH
-01eut/3t5NwzemA6r+sBOvyHZJNOyq4AWdAEO3ZXsH+Y2kx19t5awYrU99nXAy5hFxuFE4EOy9vZ
-K0PQEDxe3eKCjbpEQLDEq/nazWZ1ib/rOzDN27o3z4EN2LqcvSYs6hKWu3kOF9bbLQxyVvXlrINX
-yxlOQ7WGCoH9QOulBzy+mMXorb/uEOl46ysP17wugNk7/MMmLWYjnrWpKS2LWlISOR/fA8Numhwk
-hHmtbGp03tiUnSsZbxavUzmU8t+pMIR/6H86SIiPLB/FuNK3WVYrP4+dhd8aSHvzIX1AAU57UeIY
-l6/Te7kqQRD8Exutc5sjQThcVWpOUjgDSmtt5fBlZPfDMkw783dq93uu4Po3l/YD9VNUmJBS2ujS
-UzEX4Pd5h3pJFFfEr1TMQ/qFRDrbNOUwea+v5SXvxNyjFBJJCMLz47C50ikJG+lUakh4KJGtD0Wr
-kkqIVhXOWNTK1H14/zrNQxc5y0uYRAhqExt5FJ27Ofsrc3Kmy6wbK1XonG6JoYXX1Um8I61tnVne
-CVLI/JDnOILNrvmIibTMSJG1CUilXak6J5+WZdSWbh1nKbptr6UgJziJHgKaEWgd2BKZ4eGqRGnl
-tpFnleqiOt60UWytLaRvH3nBnKu+KuT6dXon9GOfnjzCtrEppsLqQK/KzalcZ6ZfGou4s6IzdE6x
-UFDTMQXF8jDZc7guP7OnMSoEihroi3RuHE/x6DVROz2woNNniJ1iopCWjTYsCvrCno/vAYajK8uu
-41GrYKSJ13YVvQwty3cFt0cPhRl+BqBOLs5m0qKwM2FZR6bc8da3m4hqZaYtV8KJ6SJqqFRBNAVn
-7PkUKYtwJmHNJnKFI6dgGkIkxkC0GiuSeg2KWpd1PFHlZEF1xsAOQ75nA7P2SR0ZWIcOU1WbWJWY
-iqswlMHKTkb9WZqMf+x5oj9Xdvv17dq4T/IFIyNj6BMTjAxJ5vIKVUGMoAVnzPmUzlsmt2wLiT4R
-x7pYO2VYTUZYqTJy2uukKGPXsHN29S+sBcoOY7a4kM+Nwj0l9IXPdehIrYoa7SE2FNYy6grrTMni
-lKpbNuMoSqHa7xynv5UjoyrSllZGhd6naztpsk2tzP+VlXV47wCvmjPGdVIDMXvHEbEwi/MjxIjR
-Hqkii2nVoF62Srv2m+D8O9VULt7OQEk4obPnsqmcH2SPgRY6YEEvABmhb0i3z2pUsFOzOWNQR9nv
-rOYo6sxNZcdCZxgzG4dkQsOO2lTkldJonKg6Z70rpjBelGUZrPK+YKq0xMr3k2TFRNMbSnd5qybC
-wzMo8lItLZiORSgV5nM4cvggTpQhsezgZcy8Sa2bvOZhvQlZm9VnJGjOZnQYUIGShViHMlsI8zj0
-GOrADs0BHZwwCpMtSWm31Lpk90VX7QLLGLZVXRaLKilMxUDfHcYkdCGDxmycTTsa+kwo9BJpHDhX
-WKSDKipGz47Mvkdjz0ajSKuS2D1Do9PJLEWbPmBoeQS0VFHVWbd122TDGem/5DkoU8wv2rbDXoZH
-I2VD1prwFAMrbLcq4sSdWJufkezJ9e1ROVKxsSudKdAAbaR1ndcGKXV77RurjAdqdL4Vca/fDHFY
-FwQMxmGkgThH2G3LPmeIKNGzHu3KNZyBux1v8jPcewk+oGJhUtC2mImq+JGfzQvqJ7VsNDqBjnVb
-2KNesKSOV6RN4+9NVE3L1xHhFB+hsvN4joCdHCOCnxQY0BHwSFbc89LrtG1cUJ8Erm1n9Y52o9N4
-Q4Ao8Mw6z9E9WqfVBoPWBdcqxczERdwXxaYM22kXt0Z1gQ4rd0kSm2fg7xRz52iTYNpFSM6O4G8o
-7QxdoBzMjUzxtTHaoV1Qp4tXfe6QUoW50Xx5nb3zHQ9hwZkbEowhBYJbPI4FWxb0uagDjbZxnXuW
-1pXHsrhTRj68PexEKI0IxmKCEEuII4tI+DQlvcVLNfZtuiDJ1C6HRrw9mHYwzYqABIEgRlr5kdzy
-EVMsnGJUxZBlv2IJx4xLLG+ITgRGHsgZ7TyBJQfUZi3a81d9QK16sIBWGFDxTZdFMrFcn1bTeEYz
-7JdyklJgxgnawdFWmo/vEYIdR2kYTqVKO1JvQ9vIVkWekW2RCXtRSqu7H3rDSFSGMlL/dlPAuCm6
-VYivkZCzo0XKZLCnpIH3n4zGuUu1oFcmoa1bUqE3RWVhLKUM0Tx/s2bO05LwEFRa0JsjB4GcxGqY
-iREcYfqtKjH2hNGPOFQR6Yy3Y7XznCtjfgtpynNldo+5dlmPNQ9KBFRh0V1Y6OJvMtaIbYTJr3Xj
-yybEZFfdnmHrCZGixIG6AwIRW9DnLsce1SrUdMJ2EOB1a9FApVFke31U1FtRsPZy4EWsctupXR11
-0RnSL9R2droWZ9ScJ+Doc+V3j7Tw+7zUGogSxOhSU5KzJWox3e6NEgQVVB+cOSdDuHWMLZU/sKqf
-oLNT1JiFwmDY5CHFTdcM0wLYb/JaDn1qRUAXhJ+2RC3HPIpQEx7xSJQN5uOcfCiVbo3poTNoKs+o
-ygu8nNfEGYPIUBmwjkEMI1il3ZO2hFYmo1eXI78gaZtt9NDWZ7DlFCk577Fg1uxo5RFeNr2fF0WW
-gZQOaoWyh+GV0/gtLMh4Jjg8xTzEQjABUxDHlEfgojM7jAZaYl6Bk2hRGYh1wz7UZwz6BJXZzcA1
-gnlEyqM0tg5k6OgoAoSJCQNCVh0qXWT2GQGdogLVhg6Ahk2PO3awItMOUr/ASN3ouGjVG9+71snf
-nJM7hKFCKTi8DfrHzz2FPQuSNNOhESSl4rr1l03S1G7CMEeDcsiZPszJBe1Rmo/vUcqLUfvTGJfK
-sbrPtszZIqd+eUbXZq94EAZgOShNztgHzEV7/5CI2Qw6K0yjUKZVkI86HvRdxvpi4wSCT6roh2H1
-ur3Oo7kvKZqUOpjuxNTPcQo26TROew2KPHDAQG2GGJDME9d3OpqqUPjhOh+6YDFGwlnlRNNfxmhs
-a5GXy5D1ye3rj3OKyRCkJTDdgBl+drT+kKDxZg/QmkSGD7I1jIUOre5Mne8UEYkBZo5hZFRO+ZFH
-s3Q/RXWJSZ4hqmjkjn1sNV5NnNI6YwOnpImZaZSMqAPscGZk2VMZnyc5YSOUM4/zwY1DZinSG0tT
-dOu8McYz1E4ty8aUhGNLji0Ox+FBO9TWkHVFqWQj/IukG/WmBIJ6b5eQjWIHR/yDGPK4qC1TWbEx
-ABrGdVZ9LNowWwyCRW8XEdiGBApoCEEdcy7JCyNxonCOUWV4mfYOd81IhG8tE2H2h8wj7fBYSKSe
-W+d78rGnzmiMWfeTiGW7bByoV/q5fQZvX1Y5ZjKYDRISfRRkbbPg9shk1lQIkslCxa0ffTRGDD2b
-Ot0WvXCURTpMUovbEjN70HXpX6DWvbWcsjzjW+bg8AhZYN8Ys0c9TJj2cRAwadI6TYDp7cnqqLlo
-hrDOr/kgSPdRtH3P3KF30mhTdRiyP6OYJ8wAmcC8OYBZAiHWkRkYRShImzmFGrOYYSySWKPXl9FH
-xgOOSW0f/79ZR+F4KOrP2MkKph957JbKIZsIUISHYaT6mlVLmU3nLGF+7EOOmhApqmPQoOddlodi
-Rb05GCoJsVphFLipLYvNmE9yw30nPKNCLzkIUjZDiIjcg5LjZApYaZFKgINFIiLDG4tU24pgbuST
-UzPxM+yz3j9j5zOPjlcHy5urjIAvjgm5A6UNEy0GjKwWqswzw+OOFp9120/fdStTzzRz+h0lkOGi
-DFmxzipaP7wuwpfqajIUTyiyHESRQLVD8lmuSdD1GKkmaRV4qSV/ppV8EDmKU9rJM9XycxHlS/ic
-KSJhRScNFVZ2ZKV1H8URNXWhcoMiYdVtu4ap5Gck+SLZcEzOUbuFIdDZ9xyFeDRuMAFXNIWqYqOa
-XDuPoq96GjPuVaXPr3XSTZFK7BD1Ipmm9TkfcUJnBcGO4Tn+Q+XoeHawmkqZ5GhtKyP19VIEydi4
-jm+G90VdsfiMGZ4APrRJkCZLVPxn9DtaLKNGgkl4TGePVn0NXEzuTR9bTjpepabH61DcJSxDmjz4
-fd0sKbbXSGXUtf4UVjwvz+RaJziPXizmM7Fz3ZwHRg81iqbYTz/pHmCvQ5hr1zbfewuxfE4GR6Wj
-n+xq+7Opg/DNrgxMQAsdVTPMagrrSK9I5qRCl9BkMfK0cJvAZ9PK6cyoPsPuU7JF0oX5U4ZU0uTz
-8X03k+exj6nTQgV163/qxpjJxWg6/kUT8VaeiRtPEXNQskL10SH4PeJmwykNjSYp1ISq+rY0i/ay
-z6XhdVbR378OBSfAz5pJEDQTJRp97HBdps/FKHOsS8bS/xk35vjJbmS3SvI0XaOZGX55nd6JpaE+
-j4ljgWqAjTGBQ3opN6KsHQvgeiFtzwjRvKyqAN10XPN2kdloN8MlYmmoFB/pRmRlZVA3MTaOjLwK
-FB/a1kfLL2cbk+aoA76+sBOYaiOm4jPKkbnYeLiweMitNGiNXJlZFrt+EdaxMjSafq5v1/RnM1Yd
-WWn4mjOZ0ym6KDWCJHseJDnSlbbpzZQyCbp9jurN0Eb8ko5oMlZ5FH7qsQvko92Fxpng7oQYMZyA
-EEAi+MKLI3PoZMezxggAdQ0qBH4OKy/njS1S1tYZaDmhoTZwTmAoGxVjDKQfMnZifSu7HjsM/Hqa
-3LSd6Gq0OnvdVn7s9XlgnCmynFoaUuq5dYJaMZLFQ3q6l4EebCdHe5NbG2pM1MsCUdxOdpSe0dBZ
-A4/CABtRFPoMEqP0cJCHpLilKXYw+bki2Ax1ySuUjmIuwuXrmnmSCvyuoAKdQOfZkexBF8nKJLME
-0AQbcvRC+8S+wA68/s11MBMNR1QjbBRwBZVzKrxHpQ7RdrPGElRSMUgXU+jpuOYxemreKGyiz0Dk
-Ka1AdWrOYxBUcPuIdYRMFvaTALeMprnrmukmK3SvLMRTSupYnxHUKWrz1neMT6FEjLzucHFlXscW
-K2Hc1aiDbR5VbFkngdyQYSgvpn5qz6zuhMiAyKhCO0SCpjhCyUTSsh+wIUD1XVmiJxsS2nlBYfrn
-oogTyg4Sc1EM9VlOnPlB9qQ2lNwMsX8P2XrXyczLMDfgyaSwIxVFfnX3uiKe4CKYiLYkBhQcB63p
-Q2L+YA55E9i5spxQ5B4eR//IKy585Rso4qLqz8O3oyM8NiqliEnQGT5221NhZ0M40FzFXeS7iRF4
-nGLPXd0KY8H9alDDYPbe68s8xVME1WIuP891ppkNezwNm9goM+xmVbJOtxSdxEWasUAlHDtP/+8o
-zb5hj5JVYiQME0G5Ktsm6jaA6iZd5GPSlW6UlBDl6+ROuBpHzk3ROTaBTzlaWNZgC2pYm7lqhqlZ
-TaMwrifLdzwtar0wBmfcSh35X/4FotYMKzAHZEtHRKvM6c3IZjl2NYOJEcZAPmWj9Sm08mpJLM2W
-fR3yMzRPpGfzd8kAMQmyetTbD/la21NRx6zKFTIlUwVhvnXKIf0y+mGMr7Bi2YPISOUJg1Qb2g/Z
-GbB5GUvPHSFAKCJq7Lk6Nn7CCzmwNMpVKwfzpqXYc5iGVfBo+LrdTbbhL2pf1zujrM94vtn+Dt3R
-rK6wFMTRKCgcu6O84U7UoD6pfIqhIbQzgkXMYnrzukBfogCyTok6JEbKUEc79q+dxIb7iIYo2Pht
-+IC98l3oNfh+sHzJ/aF4aFoRPL5O8SVD5zwXJTVpwQfiGxEOxRk2mRGSChFE1kRZr3SUi2unnRLs
-1UZLZSlYLpTMA9Jho6sfn5tYOEX9OYo3Bb5AAXH2IfXOKEhkcoShpCzD1JMGDFNhq2PYu06fRiZ2
-C/tT75UDKZM1isXm0+urfwlHDD4Ee/TQkmAUldJD+ha6EQiTARIU21w3+H1MSt6vaGjbyzdTQokU
-lSG0cZ4L7IeUkDtQbIWGl8x9R+ZePtn9iC+GQD9/aXViDM/A0UsrZdAjDMvOo24AhiPG1rGRxENT
-w53QVP+EA/GSPk48M/FRgWvyYhVko/5W9rJcxSPjn19f7EtjAXWU0m0E39JEQexosa1lJW0N6pga
-iy/M0iJKxDl9s0nOVPClGwh84Z2to0AAFmJjQrtHhNgbzjYe+WVnD8bmX1iKTWerx6SnczxTU2PO
-z8BEGhjZT+U1BtJ97MslpDs3B3bC8lHcpihVzl8k8qKdhN6pyPq8zVVAuPAcjW2OjpkFG8z6DVvb
-bow3h6SYgcMXpqBHhl2kL6bB6oCOhZ5FZBgxW6SdnV4K1L0WWTDw69dZeEoXMXWJb2OZC5aYST/U
-hiyOCPKtET5f9vWGxJq7KCZkHh37dFPWFdlq9NpvRBWX37AH7v9w9iU7cuNMt09EQAM1bSVlZo2u
-weVylTeER0kcNJGiSD79Pdm4i89lowv9LxpooNtmSiKDEXGGmN85Cn+JMUjj8ErRdQIZ/i0vOJPC
-gvaB5Ju5jiT1go7iPS1lgT6mK9anJCEZ/EvosDzRofPrOw//Z16ADAvy1TNkXEIg/ybCTCTMgJMl
-cLUwRa/4GENejwkOY7P1ndSgOQrx2BGX/R8CDhYGt+DsipMCRf79rZth0EtnUQT4eNENwS+8tGXo
-X+JiE+/krm+OO05eBTZPXKAAQAxHZvf7Usz2o6ooTFGiXWdtXEp9iifL34mgb5t6/3+ZEvEsgiEG
-ivrfl4GpkYqGNB1aDozCVHJrbRfIYYo4aZZcRx+AJ45XIiX3zDF3XIB2PrDN/Mft/MfPeBPc6Bzt
-Bsnt0A7rqmqXFesJieF+mgqVtqIKhylPTY3TjMYbiIyHfz9Mb26sf1YHuQ9slRidVHRwfn8J6zRM
-Ay+2AX4s3XaVLbk/RN1mj9Ng34MZ/vZZ/3ep87n+3ww6pIXPlIUXR1UNB5PKsk2cnt75rG8C3z8P
-VJ0bwyWyORQ+bw4Isb3I+oHD42hYi/0qAgOWNdrPYr1MPa+ij8Vs2H/M5s6LgkUPlA/68rMW/81b
-TD1d1myqunZnfXdrHDHtiB38TrL6l0cr0M+DBVYMLU7xNlXeIBRhBA2mtnK+VNdbLFNxYVJVJBeQ
-6mvof4oZEf/fN8ibgPPPowG6PLO0sDaKkd+/2sQK1g+eDq1yEWcAgOdtCE0R9B7DvMUVrmpM2dv9
-1G0L0PZ/X/yPLQM8H3sfvAgQ7RFr31zJqzUFJQwWK9liuotoZb7JQXp9Z5U3EZ3C2wQEcaRR+IAp
-sOA3q2xygHhlSuKmG3xnG5/K6Y4vrjqQ3JGD9rit1TiPxzQJ3Tvh/I/jh6VLgM/gwiWAU+ibUFfx
-KWKCq7SJo6mP75NstsvzYExCaA1+izbvoFF/Ww/nAnc+cjlQ1d+cwT5QmTD4MjVeUFvLHYYusHyQ
-TbaFtf33b/eXpdC7r9DCB7kJ5/DNo81Qc60CdJqGoeo4sGUMcI0xGULasr7zAd9kBOcPCBYEIHb8
-U8B09M0e5SJfYrfteCodTdc9G+cTYUE1CSm6RwN/mprtG2+4cunNnmb7Ox/xj3N5Xh7QCJI6MHew
-U38/IgmpKuTAfdJgk5YnEkxS03xFYzoiKfKDKXr49zf756lIkWHhtWLzIF/8R/v7P4F07pxgnCGs
-JVLQCyFHe1iG3rzzUv98qt9WSd6cClGlFVlEyhog+kXTlTlciRxYd3FfPVibZu/Emb8th+7smZgN
-EQWe7/eXmI3onQ5l3rUIYtHIjzNd/dA3fSZTudXlSH0yHryRAz3+97eZQgUICizIk2hg/b5wj1Yj
-+PsJadJyyl97ARhz0v+RDoSPBKcTXA3o6AABwon/fRE5ednDiRpeUXic1yqaxhYoxvxOB+7PjQHx
-Q5SjA4dKBrn4m3fIYSnQ7bzibZIA9cnKYToQ0Ncu/+sLwyrnHhEgUTSm3ram9JTu/VwS3s40QWYG
-uetxiPR7++HP8JEjJKLEhTwTiGt+/u//s8nRqmc+XUreEgtrsb6PcL3tMb9wDGD9vz/QH1fcmdGE
-nAo+jAWEQm+vuHU6K2yHQbQLZGLfYfannrKsW44Lz1yry4lcdWiivrPf//Z8YEKkwG9BC4Ds9ffn
-WwNecLfgLfKhXwAZg8auk7GoHYn3d07y35bCicL9gnrlbCz5+1Iwp7IDZF9AcEJq7uZ+Us1ky/iV
-gmD4nw/TWbkHDhI66ue23pt9HoVl8PNWinbew3SqtPy1pvl71IM/vxf2w9kqHC2m8x55E291CkdB
-ClUrNmDhP21TCG0gtL+B5lXfRv0sb8dA1vewsT8P1++rvokTLPcT5FpsaNPYhgs7D+Y0aZtc/Pte
-/DMXAaiJDhquTcjPgW+++VbOD2IhKEpIuQ33Smwwqivc2Cg6J9dxz5mqh52lF7Q37Ou/L/23B8Ql
-hsoWRnHogbx5QBf0TIhzqIfy3LX5logbYaL3Okl/XQVNbaD76PZCQvbmAfkGxhPLhrZIrD2m8yTA
-IYvf6+v+ueVR0yAQpmfXLGBxb4qqqYjUGJuet9EW2Haa9lknx8BXoS4WlRjzTkg8b+v/6ebiMbAc
-xCgwz0IVhWry94ey3UiXJVDewmSTnjqxhIcxg+ciX8+9qmqz1Tvb5C9HAF0/UHDOfXOkx2++VW8o
-JbbYYaNZINswJgZmVZCpvEChYo4WnPIbW2itDv++Rf7yWhGPQbrBqjnuzDcfz5Bz8rVY3na4fI7Z
-yMMlGza0dCcU8+8J5v/yUpH854DkcPBg7/jmpcJk1BdVt/BWG9NNkJ4h9WvAPijzZsgr3V8IOg3q
-P4dlNBrh2XW+4GARVr6JLbSASaPeNtWOAEMb9JbYU76b9CKkk/3+7y/zLycBwBWOORrFgHPfMqjM
-VgAF6K1qwaEvGhvbrIEP5I//yyLoRKPPARnY23I4iucOfD6jWhCg90M/RlE77lV45wb9Y1+gfYJr
-DLgfejZnouvv+9+heAO4yKcWuvLlQaLt3sIpeD/1sOb9/O8P9EeAxH7PzoAYskRIed6y20Z49nYj
-fEFbPmXpEwMzi10OwUPg2k5sjaoWN/de9g3d50V84ftWpe9sEUCof3w61E+gSiJBPjNBIKT//XlR
-zgkIPgXsZrNIQANOQioTeW9l0LBKzhXVKtT5oIKsamgnNZd1VKooF00M6I4th2qIYhV/DCr1/ddB
-gItBL3dZzuS5L0Z0KD4zL/jILwq4fpIfo+KElQ0ZIgan2UHYUfBDtHcRS5vej3aJWmMB9/KTqfia
-Plk3V2Rq8r7fz/9/H5b0dSl6ZX7FJpr3zyEJefphVcWqfiyCwhoz2fwQHziZhoXXMKHk6mqb+XAV
-FTznAMe49S+uHw0Achherrw4JnQYYcYbC7tXNRC2cr2N5Nkpgae9LJ/R3knodd5ZHf2oNHRPnwQK
-whTumpBExWODN6OK1krCtxE/fnLsal65Mg2Q23H/GHuSQyo5Gc5YqwCSi4Z7U62fHE1XfrdOGUkv
-ZFUxNAjxLFP2uki/paFNl90V2cW6hC6kB2M5ejGNjGRFi4u112Q/GQWqVZ3L0sLAFcqUYSgaVS2V
-qr2fWdROPUv947SFePwh5zFPhpOBS+DnRaOcta1c4b76AXzZiX0wQxVAdt5iPaBQsRo/NQez5AVW
-3REErWkYx/BxzmdwWqsOthEHp6PFNFuRSf6gzx40qiUp2arPGfOF/jJvq+w3uDbTcfuoJ46ma21H
-LtcepSyr4os+TYx7zAdnBKqILmwL8EoeEcprmaxb+Jy7Qnafhqy0CznCPWC38lJudusfin6bra0h
-mSnpw74Xk9zh993tnjdnVBY59uBzN31eC6j1UXeNc2Weg0932FvDHzmQh1KnnfxOcWMnXaMIKTvd
-hn3lMA7nNsq2j1PeR9nPJATaCTSl9dJHTd/ZgsMytbRrrBu/LXBbb7tq2jssj4NcPXHmFTjr25yX
-4eTh+zy+lpmIuKjBl+g97ha5FfsXxEqbRLXZqAj3y1aCBnkiuvI6rRM+rlnXiM6k21oPZUjYT72O
-CbxcOcs1ZAvE+zh6KakPGnp16sJqG/jALv517qsQX8HrloZPFHbg3ce0YmZ8grLVyTarGNkbyCJC
-UZeRYWNrp8FHtwp2ThD7oxkfniUBe8S005Zj8XVfihvveU6fDS+3cCzZhAjUgHan+6jVbIo7crF4
-CeS1Hhfq/etIFQ7qUUUeFg1nn/MAisjIybhG1+maqLlqAoMf534ae5IVson6Em3AOiQCWMD1RqDi
-rJrYqi38yHoCFKtlvQYLqI4nH030CIrQWEItF8MPOK55FMb9FQxLAptkKMrZeJMkHQFLFR4/oCXX
-MMXuxNdsWd08NEUXhegx72cYJ0C141nF62BAkdlqBNhs+6645z38m5OuWrfmzIfQ+qqAEzc1H8QU
-ZXK9XI3s5+20OsiCdWNRFMDAfE5zlt2MKc/VBt+ioR/7S4NozcGRjisz13A8X7MmoYTMAo67ezkn
-lyFVCF+fmMz8tj2OcBIW1UGPVbHHn1Y2ofZBdldmKT9jkqS4dSY4d12CNKSTw9wFutd75bf4oLWH
-JVBbkZ2v94ovfrlY4OUxcDAKzSR4jVEqe/WjhIV7Z4+G+/yXmYe9uI4joaMvxZDo6UkVUOOD9Qey
-EoiHEJFOP5IUMblOLLKFZneDtddRDtfCJ48CeXuOzLTKk5RdnlzrEl5UDcJX9K0wCuZGw+bny5UF
-edozFsMgYl+6uM7hw36bs6S/gy23OiayEnfA1WbgPaqodPZUDpkSB7SbVpfUAL2n/g7e5DuEu3O6
-UPKSpOh9f8czDemLyblGWwBipOqEnwXIIe7F5hvwEGR6At06gom0H1nW5jvS9EbwKlle0i0pSVQT
-BS/uG5LBV/4xEYNcbmLcwOx+oYPzN4h380ugse+fu7Fa2PciDKV64IKUxYNZolC9gAu0TEc9kaFo
-+3i2/oRc1cNe3MHBmx4WotjPqdLxeg/a6qCOrhtc9Q1bdsKeYzHoLg9rnozjj4pRnkNUuOI9wNnd
-runPgVp0p2syrQl2NfZI5B6yVAGeIqM3+cfRhyVc9YRTyPqpY1I8s6400XhBd53r4hhla+fiC4dC
-gbkm7CVff9kShtw/raDLuNe9ielGGm0ITb4lq3MwvO/H0eWhhULDatnABanrXF1V/ZBBqzH1Z1bq
-2qeL003ux2X8WWwqimQ9lYuGUrbvElN9XSiP5udioGrApTRho/c1mGEhh/v35FO44G/xpsyIQFq6
-9VSWVkJ/DtxjuR1Itqc1iDKwCyonh3gO6oHeXhV4oWsNDdUA73Aew1NfgAcCjmU8EQBJbhpAK4It
-Pi2fXQfg9JntRP3oxpmX6FZKK9ANnuPnmKBj1qTYi2lTLN2qvustlI8geOHGrlTUu4d83N1Fh/PF
-bkSf9mOD6LO8lDGA31qnVrxqkHoepZ/4j3zIjLqYJ5c+zPueP0B02pl/roXXroxXB52jzq/Gfem3
-j8gUSrSk+6xSpyXA2OIEMxNmDhh4QV2TTtWaXQQdgdYCuq96nuICH8sHcrmuPopb9EZ7TH+Y4XbQ
-gIgHK4JskZIfeZ6xG1Q3XtWzkuHrQHB/X84mWehh7vUOCrYx6rAusTjmpY/pkUZjd0LxAceQ2Ys5
-AqmNLX07q3GKGgvSeLsCvdhOO663VxiGO9ksDHdMkwmLjzJ4CVcgC1arwdSCfROXerCFr6ktwR2D
-U1yF4QOD2207eKLdVQfLC19zPhYXQq3Gwa5mL+M2IriG6vi8VLNNiQDnI94YbdZ4ykmbusRh/sPW
-9Y8Id8lnnU6jrRNf6U+UF92nrHPsVw9k5yFeYX2CN0JIdOyHCThSVKwRzsPEq72uSo1kFaYxc34z
-M+XEwzSFUZ8Sqvl86SZodI5bahL3SUBlvrR0KchQ80zvgIEmbM1cV4oemC9hX8/xZ+7O3wGdcC8m
-2xjG4GePHGUqWhqQi4CX6BUuEV4oW+fjlnyt9kxddzC4dy2YzQOeAXb16Qku9gsU5WHgXyZ8mqEZ
-dkmOKVTfGX7tCEpRls0jaH9KJA2KHXXkVOJf0YZFDt6JcuzrlMfd8yo4ZxcYA7AndYFMBRQMXlZT
-U8VyvhMyL/tjkXD42VR6y80xnXQESL8KoqoxPmLycMEHs7cmWYxZFUCoo+wQNjU/7oVW2UclOh43
-e064qZUrZl2LfnHuNiu6GTLrLq26Zuz2IoYLP2aLfFhClFxMHVfZ5ZRKx/CHCEV2WWxxqFMog+Dv
-XhgEMx0GKo+jsuQuAbVq+hZPAsb4JWImpgi4rWv7bsFfm4qiEgdbWWR8eTFkHZjiY3FdSV7QUykR
-w7daVqP4KULq9p85TFdelJxxn/B+GNJ21FW1Hk3oIjxLrMcG2RKFG/cOuscVc2v2nGRel1cjgw6g
-6VPbPYaiw5iVGcz7a2cZkku770jybJirpM0n2rkGplMVLBd7N9z7JUm+aFr1N4OcFK1NlHYGwbDi
-QzMyi8C4h5h+WpPIf8EkEFbVxNIhfkw2A7uCDBQH9SLWxaI3JrTB3BYcS4yUAR8eN1/Ohojc98hr
-n8JGYOsSTclwPcWYV9FMcP0OtRaT6Nqu68v0Ap8qs8ew9bvGVh2rRwu5CT8wNxhWd8Co+4thJ0t+
-FKDqiNpCxoSBCIahHRwIU33dTy5+oTs5E6Kg5uRHNCH1oUot2KDM9ewUEhvBgyjrOnUiyKfnz5gC
-sNdzWQjMK+k2xC4gG5j5Uu+QSKqLFXrXe/TeEtkCP7Lx5VKYGAoxgpoF5ysfiD3B3NzxixEjaOZr
-5Cqo2gQ+C79AkwF/T8S3TLfaUUjhIWDpPwPWVz+TOHQ/+nnaf8D6pf+6d0LejBm4eccUVfp94Jt4
-GhmRro2woV62dIz0KRLp+LQKEiFmqjikx8LlEklBxCrSZkgo0lMeu1hcplLpJ+DsWRca1Puo3oIZ
-08cVGjt/gAJpbnvGc9wFBLdWAxovvLGYpOWAZHBEgWplmt8DlYcxRYCYqTqCox+tR1KshfvEx6oU
-l4YKpMPGRsUhSIt7qNbDmJrDDK86zMshpH/lHZTzNUhrkXrim991a9XC0hNC8XQLEgWDxDcNOWQ3
-W5XXNHD4BIBIUf2K1sT9igypfmmaobK1nC2+2aItA2hZatxnINjJAXWISg4sQ3kO3svZLNLFavm6
-7zuULl2fKlFrzCb5DrAENZCpYoEUmayfSlZM39ToSXqVQp1+iqO8HBq0s9cFPhzoAh+hXBFzwzMG
-7knfL/GznZjFcZlC9yXHxJEPeaDsa2U8wWyeZHuoSLWL04yMB/RJk0FVXCiAToeB8+W4U6WHQxW7
-ktX9NvjbfZEuOkq6u28F7EhFnRFvvvMUHglweRnTvGUuKU4yWm2Exk0XvuqIWkjl53J0F1bo9Nu+
-0w3zpryfvs4IHuFQbCW/TXgS/Uo2tX+wBH3wY7ro/KvtJH/qMzhkQNIo9dWWd0iRMoAptvbg+NgL
-CRKub5d9UL/cEpFvIyZFJYhv3n8cJgNLFj0F2d/xYaGATZUdf8ZSr77ZfSXEwRMqMTTKye2aKIfB
-Sunol19dTtkXn87dw4Yr/D6XvXntTVaq2uKtfS8Ws147tcTI9Ud88xr+Ky5upMDYmlrK/izbpRq0
-hYh6iTkEfb99qFaU4TV3wqCq8v25TCiz4T5OlBuPczRk6MjHcDM6Wu3tVvNlyIoTkMv4NTciy+FN
-oskdXTMc9wSyywKNKtTwLebC4CTTwhWoSsEkKIE2EV8d9tRBwiGcm64CMF963BMU9odkwTCu2lBj
-TgXHu64ro0zeTFuydfWmC2wyZim9Y0vZP4N5IZ/2ZEMfCIXfpjEGrFqiGqNCEENUXrpHIbvsp50q
-ebvrQXdXrseYtENVIok5rk6VphHbGVHBGKzuMl4KaY7OVdUT7vRpaG02jNccCm9zuU4y/zLZlNw6
-jEPKjnHZ9587JKzbVdGt1WNfMe+gfRTQGOjUZazBcJrlUMauEBdLTEfedHSmP8oldSABjUxe07CG
-Z7pvs2nWTOcj7I482WuPL3NSgCL3o7V9eGGd8+4G0SJTxyoRyUHR0uzNAsoE0tm5Q3HH8PB4O77y
-Lyi606dMpN1HsULoWw9myZK6I8gB2kT46JccuLqG3O8cwtG9yo+rHeYCY2u8uS+Mx0QofMIYLyDs
-eRMgy7qDp1vqmn4OOUY6lSRfDh3S9qwhkkaXmd3xmBVEEPCBVHtR1DjP9DsQPvYpmqn+TEGn/wKY
-wF93csNMHNPL6nO52+kHOoHyft1m9Y1nAUOX8JiY/BKlKH8xZqeAWwY4/+DB7RW7TEctS6y7eewo
-wsx+YFFqkzqmbMGbRcxAHyTJ9KOEuQeK/QSsCETPYrm3qFIxOoitPL6ePcm+WK+z2yLn61c5CPo5
-LQCh1ZpK801ouE7VTqL/2Wg15Qphj8ukXjGM7CsQZiTJW191NyFb3IopcvF0i0Ee0QBpldtu5q1D
-khLFW9x6VsgJsq6F5LVH3fFKQM16LYec4ncnMyQhIG5MJzpzjCvydnUogSArRfEfhmk5MUX2W1ae
-h4LkgGJNvfRJ0TW6n8rtgKzJjw3Vgb+Aps/uky3fba1QH4VGYU5ThVrGThdjDj/C2s55MTVdCsH+
-Vbn69WtiPX3KQ0URu0kYH6bRlJ+zLo39ZSU68TQbPn03oFjfwj5i8schHzBoa4ILxkvk0EitE9zA
-EP8PS/wo7YgrgPWwzUSIzYsHN0bF5y2dUcqBRUyfe2txdeyTh+onX4WTVybi6bXUKJKR+6bT1qZj
-TF6GcoItHWoGhoK0pDBy0shablTAFMF6pnKxNY54/o2QXXaHftlhfIShYbimOiHuxhT1BPpAwJRP
-cmH8Zg0wSjgxUsWXpRbFz07R8Qr8dWQx0iLFiE3pntBZLpYWNGS2N64kZd+W2QwCvURDDFaZ0M3f
-DgCbvu/SVPnRmCk5ZrlFRj8ajtFrybrq12jZq/sc5D5w7UdYktQiU3JtKng/XgPKnDAOaRXDx04J
-MzezGRMJQ1aL3KuEaRSGb6Wd+rhVpNgbtc9paAyN3Q0tO1/hKjTDYwkX3qLGlCmMpUrLLT7iG88B
-mRukzirR5BXkIsjdIXpPdJvJTN9IqOP2CwGU6Kkg+9pfwTUSl2OPtLqvEYvIRdVHzp6ibi6Kds1K
-qNSzDkGGoll2xWIZ7rSRS3UIrhfXfvRrhgIs82ldYXjd3bDnuNXGogOMKbd1vBgKAEWHAObhS8bm
-8HWpXLS0+IbiBnOckritdo3NLQVTnw0R87dKSdo1OTKU7wAZ/C0vdtO3qJnHD8Z5Iu8jWDGY7rGa
-0QRu3ZQaTOVh27C+xqlXSDuGjW4fKEu6vC3HcvHfRCCRrkdhcApIafAVIqTqqAx1KtLTmQAAifOw
-Vt/zbFjHw7LqsL/ubIs/lgAOL7yNehycYLeXSe3Vd7VNsj+W8Tg+wzidft4mwtdmT4l6jQbcunWE
-ivtTILyC6VJeTcd4zbFLq3zb5YHorSoPbmPzcLGi163rZKRxuOlkhZwloCz+mFON9mLsEjgDpGhg
-y3aYRelqWJVO7lCWfMKotCpVH4WDcQKs08NIarf27tVQjjQ0KeKxOCiJH9NOdsHSrlwK3UbBu1sk
-zwtqWS/90ih09IYD1PlKoac2L18JxumV3XcZzi0FHy3LQ8lJWR4wDg/0wn1f/N6EIRvRmSo2EzXE
-OwykQ3dunZsJmPavxBcRbH/xHYbkIqv2+cvCNricsmJb0gY9ZpQ1vkg3dHpIPs1XmiZEwqIzTdEd
-grEeusTr3KtmDCG73/gubmxE9rHFcDaUQl0Aba/p3QoT+X41835MEuQYYMB0oAGrWWGIJ4e475Gv
-WxLhf7fThzjlyNs8D5E6BnR9aZOPQ/6gJFgDtfPbjI6bUMUHWNKlRY25YdsPCOIdxvlFPprbHJ95
-btVKejSs5qq7tx7GODUaJSI6WbB29zZzcOdsMlWVK7ZOQm8lY/oRoIpCbe+nMT6Hb/l1cHRDmIZ/
-G/74gGy6Jiy2T0mg1d2snHEn0PX5vR67OGkzeEQ8mArmjfDzNnB8H/M9AVwV9xsygUgnMTluFVpG
-z6rnHTgevLNxM03jEG4FFSjVMlyDqi7NlrnDHAiMO4kMu7we1jK+WOfZ2HoG/v/UY1cZMGtk2aNX
-QacOwXjAgRrAlelqB7oXCtE8605bl2IKKIyJZ0CZjJuuLmE6zpp8Y+4rHaWJTj2q1Ev0VNO7qdjz
-X31a0Q1xqzOYWYcNVNSZlCE6itCJ0K4ssU97RhSp43jwGt4YVBYAYYZCNbOaQfj28MZyJUgXadjR
-5gUfVnzY4Z+WNcBp9wXZ/l7eAiRaPzFQ5CIA/miFwMt2D+j6xQZAwLAvgTSeafBH4wF3k4yp/Eb6
-IaApSSvxxIDQzwdVkMo3BPXBfYVJj3sDdREmL0aRDugzeykuMfgQul7jAMvUGZwZxrZA5ro2GzA+
-hS8ZJhQAjmZrk/GZfqzWGHV1DNHlIyCfGC2MJd6QCG2bqI0ogUn5wsz3G4ZA8hZ+3OJSiR45hu0I
-JlXavbffEuYjiXxvn2+4UDK+TAwjT2ug6QO4v0HVmWEVOqzRuK4HBbTvNkwZGmB9l5lP/4AMmCla
-zT+TbXV3ZGTmmbBpkYdqXfjPLBW4Tmfrwrfdk/Uu9WP/c5lg4YHiIGV3sx9zhCA2Jc9WUvj1WnSf
-LopkSr6zDSEPj4o9Blw0bO3mxvVLMRI05kOwcNzayl5CkgwrF/i18eyAe47eAUHTjyhVw9ykXeZf
-QJImX0YgE7jIqt7pWm4x4bdwKwWe1JnFfpx92Xvw/QPGHmDM4fpzjeDZgmw9/0lg4hg1KEbLD0my
-c3R6V6c/EaeQWfdmi24lP0ca1/fsYcT1aZrdxPYa4AjUtyAyF6Rmg47zW5cFmgOaUfLBxR75LpYc
-7xJHctgaWtx3ZWERrFZMtH5cypEv15oVCcaKJspmbVdItClhoV0mF9tCYZWVwWEla02MUaZ4Q+dg
-hVRTNDPaqc/x3qNZKuCPt9cZRdujgzVJdoFLMEZfWzEA4UlQ04M4Ow0cqzHxNwh76YjyA+l9nZdk
-+sWIorQZXb+gFLbp9MhdpfcGePmgjxUdYfqSuCF+WJGCRE0Ols+9Rvq/IhyUPcAnyEc2KONdtCLJ
-7hzc35mabS0Q6yBPskPhLykUgT/LjHNaq3ijqsEm8S924+Spi/k6AApe168YKIlurcUgOVFvzs73
-OaxJv6+4ee7QaY7v4dc7JfcLuPAMLTslMHrjjBA7PsbrZ4bOX3Tiqd/uMXNUq2uWmxDqBccrP0KM
-CPyPk7Ph8dlr+KC0Ri6flkM1gM2jydCAYtt/GwV6sxBRrihoySoEYKJZ9PcJ1LDbYTV2PXRMA+J3
-oPLh/foEScUqo/xBxEIseNUdcoUJbNBvkQAwfRg1QnHjucOOLaeo+GXSyD9Sv1l9PZc5rhwPzU3c
-FDZzX9EHL2ijQUI+5bC97S8HCnr8+ZqDH+Y8TynSv6lD3w42NAlr0NYNL9zZ+NULWca1TQS5huh9
-+pkXOxrPMHmG2SoHBPx5k4UtahkpYPhZh+GeShP8zWq1C1JaWsisWUSZ/QLukQHtAIvgDBYraK5G
-qlFmwTQ++o7eCdriI4KabQTgw+TGryr6JAldkgMmtf4/zs6kuU6kWcO/iAiKmS1wBsmaLcuSN4Q8
-NDMU8/Dr74O/jYVO6IRudEdvHO46QFVWZr5Dmok/JqD89JFDwHg7pv8b4CVXPWSjPv+cYHK98EBM
-aKHYyMudjTrE8o16aLvDiHf6JQ0fdfQqttBXsqUyDyI9VFS/chZFP8yi019Us0yeYKnGP3p6sy9Y
-eYr4AE5dPNVpYv5pliqePJIelZ4/2NxPWdXG9eQ69djszMEVvyCOy8XTwhQTACZRGNmFmuXj95LR
-XealFpdhE3SwQdjICDv/4zxONd3DGpw4GfKZFA/mTb2zMiWWu7ZJjC8tbhPATVNp/AmZuczMlMoJ
-g7gZrXFvJwtswqQ3VYWKoVLa6Doy04JnBhlQ/In9Ou+rvtdzv+DbXZaiUsGSEWT+yeTY3UvGTdeB
-EjIk1Z9pV+s7s2RgrC/VXFe/LGHehB7GROaLok0gQmXkaN0+pYB9sDNFSN81FWW+YNqv9ggdFmcA
-VcTkBnaFh0vVCboz0ZoHeFEYytu81GVOcB/Lr0oDPMYtzbQPbxHSvldba4j2o9IVP2xJduQnJc1q
-L1cik/tMy+VjV0/mbzQX9GfKrK9sr+nQ4xjPBk6G4lqfZ225yhojUTw9C+k2DZFp38LVlVngcA8v
-Qdw5NUFJMXvkdQPuEPuI4S35IcxrO/2iET7oPMd1J3bMqUwe0yyaafeYo5LsKnhJzE+PNdrKsrMW
-X5t72MMiW7IndF1W4RX4WUT89WYJrFJbOo8rEoyj56b502KgawQgPuLSGosww8PStS6tjKnsNPTH
-6WvMq3ySy4LIeErdpPKVjNjnD7EWYzdcVrXc0xKK7tp49efIR0s8KWrcf0fvwfEr+xACylzIqQ1i
-w2kNP1IkVAwjdLSLNuX8vcITIEAadgnQpekE24w0i8NZao30REKLAXMTyJH4JrYUsYlVd8wFKoR+
-yDt837gN7HBnTBQRnoFj6r4cOiW9MucxtDxnUicm/A44E/l5SUP16MyW+Ueadfy9JKTEvAS7v6gE
-KVHgwIEyHpYs769mQ62SK7Iz62qUql0ezKEcEt80C0g1ZA50a4QYRBMUg6bQgFkiNk9smtXLMPc8
-SK0n0X1B0fV9oiZA4qNUGBwsjgy/ZU4kZ9SUiw0NiKsjZdK1aL5ISZqyL+ipZ37ONNwe+aze3Ih+
-rH4xgNtMvkyaZR5RX/e/rCE3d6oW9/UNrXswrw5R5ExQqq3/3KFIfs9gq39yuq9PhrSgToQSRx9f
-zyKyt64mNQ+SQRq3HXQPGGJgsPgoDfME5DAYmT9rWJBjujk2r3ZaEQT7mG45N0lnN36aJS2fYrTZ
-+p0jS8Mr49Z4cqEevca5mJ7U2nZ6r9DK6bXEIFoEaTwo9+QTCwyVmh9vO8U3w+ibp2yqVNcjVosU
-DRS8E5hjRkPSMkcywfLIKhdqt6Vl5jYGMLQacI+nzSXtxvFEPxmvpuiMb7pq9/eGQoHqtc7Q/tLU
-qCQfoQiSQQiseVHwgKR0Ya9/SUhJLT9PhraCs4JnNWafOsa0g4RkwdEv5IG7MP5pG6PZYS09Lzo+
-T3ViBQZMmCQIeYHCh5Zrc1ZD9oGfaHoCbRnPMPBzCWHLW2MyohU+sOE1jJS6Kh3anSBymXzCYCr/
-nU1DU8HCX/LbMifz3M1DJIG1gHeLwE0HY9pPKbB2PVlF7c92ZvBkISrRHSPYsSmya2f6ITM1e6Ug
-QMedFMryqIlZRbWi1OOjEc3pgzYPgqaRGEHhuD4q6cPXAJnOna66HbqwvikMTf/WlFT697SddMOv
-YV79mFHWvUTVXHxtrYwUGwZ4CicsCfWn2JwrFPhzot8owNzxsSqj+jUeqpWBSA2SeSM2bt2hV5kd
-7g29y32hzH0KnASY+GhZkFrSGJtLb6zL7s+A4OKHRQnKXOxE53zqJAlkE2Bc7q6ymETv1+0SfROd
-gEwkQXTWiRoxcIVZjbznpMB62ut7ZpBP+jjdFwwmk7QujfQVRh1FyNwNvyeYxYUXt+sublsjqY6L
-zMrnCkCYDe3mU+IrNAZUD+wgdj2aTrSiFiuLr+NOlrbfGFrDPTzyl/Z1bPQxoz1imuO5qsz50ShC
-iENtNHX3URtCsUhXor1nGGM8w0frlWdq8/xWN2l18+ZT5VY2XXSHnAbz3FCUxoUmOnrAzUpR4sCZ
-JgaRWdU7gU1T7YmmonxRo1Ezd7aa05cdmkTcwJksLR9dCY0r6jULVDoV9uwTZyFvkHqV93PPeJhA
-qZmcTuYOlBxwBFB5RDD2npVYl1Ogx7N6HBXgd2J4NL060gwfTbIY3pOl9D+FvoDyI4hPGDEjzJlC
-XRnjJxEmZniJJet4W9Y4xuw5CgQ2qHnclZXJHGQQ2KGOyNz1hn5TIS2uirlqrhSD2OLZXdRlQZcb
-9eIp1hzeorcYHgbN6X4ORmc0R4FnyJcyB4onc6tCYEnDfKWPNxL+7CY6VjoKe3qxSXVQxxpmz2Qo
-8guP2kJtsLU49mckV38S9g8r4N++b9XC+k8acW7tlGYoX9fwQJUG5oGPN5nEhR1OBbaG4KUvtTMK
-9A6xHpXcUIpDe4YexU3eIC6AHmOFN4udM81voREHFyFeqiFwwyqSpERGcrmYJR1sGcJTp4EB+2Nf
-K3N2kzGFHUVnXYwa26fRLzMTzAnPG7XKqaGs7EHtpvTXWC32jxg+OITMWFe/t0tNUWTmuO4YUwzb
-JtJUNIZRr4ak5dagf2cXpldQ8X9NYZvXvl5Ksj07IT+3F0fDEbLM1WOqSfhM0wLIScBO63iXOqTs
-3qBQiXopcB1kI3fULiDlxM4OpzvmMlmlor+WkOGIVjrXcFoO6jFua44EjX/3rtWkfifpQJdBOOrj
-S61xa7L5jPGnVjJqyEuz1PoytHC/vNKtkqdxBi6jJzWa12iwR3Y45Mp410Psa/CGkgbVvJ2BYliN
-UC/5cA1cjWxSHjN3iiCyrQTEymTa0GGoh4SAG5YvDSLS51Fvq5tSTSb9mOZS3ZfK1BkHgmud+XZX
-dbEBa4KWIKOA6Cfkw2VWgn+KFUmEU+d4NorS4Ti5ZgHeUCRWSwTSaPYyJAWhAz75wNuDnnGe+Ahh
-A4+pMy2Aj8G5zsaEaWatTnv8GlEZ3YNyyiybuTIN/FzaEnQruDfibjdIO9f3TAmipZ32evNcpdr4
-Zyy5g3DkAnEO0m6uv9quUPIriL7Jl5RoUfj2uFZVYMz8COgySeTZ5F7P+JAqX1AtAmPby5i+GrEx
-/gHjY9UmazM3oG+VO7eNUdAQZrrhQj2A/y2oa+mYzXd0cNL8EptV8g3SQdeRcA2yhzKTKHBGJqQs
-md9IGFjHiJZae4Wctr0eIJr3vkO7azkyHVEm8S1Y66Q9wrBYfpJ4DfDhJ9sI26cuypCC7BosuOwL
-BSj/FZfv8XmK9Kk/gMk7VeBSFcOx6BXcIamvaW5H9qK8uFiiYdvlWO5N3GduDBssdkiuq+prC4wP
-sUpN1J8K9IgyWJLMDHeQQ1yoUZSmRWC0cIRAutcDYPQzZoVa6Qy173CnWGTYNkwzkD73satq537p
-9VEFrFx4TBTK9QGm7Xi9DO1C+20hMgQAI/1DBGm6Bx8SWU1P08meEuwR9KCvqgbXH1iAJJlZMdMr
-bk1CTiMyin4HYoiAMtZ1HbwUJc6AGBS2DfgtNo6ZXOzwWNNbTjApIsH1K1UDMgSCK609tmMSbyas
-1Jw9nfuMu0nXgOYMaOR4xjUL5XLZDBqgla5EX0kex2EX46B6iZmMoMOilopCcdyyfcdJxVWhTos5
-9LKZ8A6OSMPnAldwimkIJzbcriUVr2amZeiHS2w0cVsdsiko9MH4HS8lMVBJmETjKXpBj9ZN4QB7
-PcH6ocnr/BvERF3uqOqnpyGKi/hCIfEG20ikfm9HGg5bk5DsyM4qOwFqKMT1SHLzWqeD8xW7YBfy
-EZOKwl3uLkg6F13rbhon0X7ElWabQZpO6sViRpW8bdyquR/n0lThbjgw2Ks1tS9CPWt8Q+1hhZGR
-KyivS6v9XsY5dW6KLShBHhJnGNAZN+4JB2BIaMyg5OplriiQ35T+jjC1DL6eZnAcZYqj0Vj/vQeM
-zh28Sq26a0IjODE8ovAZJUZ+nHFWnQIID8CD0Hzqlxl9XBvUEN7qS2amqP9FU+noB1Whx+fTJhBc
-JarF9EiCi+LsxKhTfuJ+3v0uIq0dSaiz6AmP3eF+jpuBG0Za0WvdzfN/kQ3Nbp81bvbT5ZJudhYH
-CySiTp0aC5rUhhc6k3L67HjAbiNWODeoGEj8KL2zX/Toy9dK2snoCazhn0Bx6dGMbTdfV9XovuL9
-ApsHxNisQQGWFMqyrji/87RYfibUVjyVyOG09YU9GH6apGa3wnnm4KuJnf9I8HZlaI9YkNsbdOpA
-PZNV09EOLmTRsloKyCeqysePgO0u23HWOk+1tdHkHBhKDMsojZqdI11o19wtjFNyImOJfADZ+oap
-Y+oc2KqlXplRybCBRIx5dSB/zL7XFVGZJA7qUa9JQj+Ex+IXdNP0Dl1rB88w0QplByM8vOuIT7FP
-mi8o05Kq/6rBFf8mwW4eTQscweB2vCqqXH9Ic90o7+t07LHacZNhPmrOMH1t47bFBnVpdGyAZN6F
-h7nS04de6i2dp3FGtDKrC91GchdMUxfNyZwdVZJi7RKjolyc2tpqAq3j1OyiLpmIj+7YlBelMWk9
-ctzRcFx6qybxwdQ7/jhGzvNLJotUfLzWKhwNUjGnP50K4sQBi4whvB6ocSB0MaX+YYI398egNOBT
-i9XMpYzotYdGDJ1shgEDvaFT859jM4WPIZn+b0yh1jbrPI0GgYAccIcUR39BDwLTo0Ae9FInExd5
-0wn3UOdjBsqKQqg4TvA7H6hVJEONU62FPm8iDhrFUgu/zVEiepmm5TkME5okQRgikyGPtO07etNk
-myaqgC9pA/0uSBgv6QAe9FxPkGv0J22uk5+TA7PXz3ObLBf1X1P7teqEd2VqwDMi8yfJBXaNs32l
-F9ZXpdAg8vSYhty1iugWv3bCfvSQv8FmkrZaPWZ2Mv9wekt8tQC01J0IF1UJYtcFnGAuVJT4WVOQ
-muaKXt4Lp3MemNxYvahKa0JYqqpI84mHtA+ZDFdeIUlTSnTNjf6KnzyET+i4xUWD8GrYCXzfO5/f
-oz6GaJ4vl2Ws4IjQQP3dZkn0otFNg1FbT0UCEssW8zS9UGaYgsPKu4TgBjkACvz3sJxjI4CRtADD
-2448wLDnb+pw6yruPdA3kmMo+V6v45O2i5rOvulSU5kI1bkw6f2l6XMjs+TRDTP3DtiQjssYhouy
-NrimynMsBWnLlBik+zOR7ZWkgVJDg2XpdRViBw9hVfjTimlV7Fu3To1ghgvhwvPq5ktjsQq8LtT1
-hknVOk92xhDTls1hdOg7UTj27Vp3mgSVfrloqzZq/LAf6O3h36RdtcNifIsyopiHwWXC9CHKkr3T
-SNIZzJub/0YEf1dJXXRaMDQqeHnioCrgTbMhfbOro9wblll5RoDIN55mLNGdZBGP+mRj1VLDu9Ro
-jZGiMUGn0hDeZKV732XhYnoU6zFJQygEB0LVlG9joi/fwmToBYTwtc+MGVz/aqStXvvLSB/GX5hA
-Ea6+gjOAGz2ju2KWkQJ9lrLam3VbXCMXa24cN4JwbIuCzD4y7I5BUa4cJyI98LzWzkC9y5SN4R6i
-qBEdc9G690oZ46LhuiD2X/RhBM0ADm+DkLDfIrHgrr/QUsNVvLZjjnJXNgq1aAfsvqNYLVNkiGlV
-3WuzgBYAZ6xFRBOq4F1o5PpdPcWzDBp1EobvLEig/Unt+9dBH5VxN/aNSPdu7Gacqdi1yLQgoC7Q
-56IoDQQtweT3FNGY2fWLIga/qBDAk5jNGZQLt9aSS/zH3OJ6HBLnzkyyvA70YcmRaVVw7G6R/ABq
-9+gUeBm1XvwWWSna/Rwv4RTMEy2rfRSTGAeCt9gEC0Gc3CIFpeLF5lIRdIW08CGpbXKJmtEXCkTP
-gSRk5qz+ycuJYeoJuo+HqptxeFnHAFwzEKF7hjNrAEJWrXVdm+DOvr7MEmqxI1O8GI1QwLwlcnkK
-QMqNCAWUl4lOKky8EVp2kKMf+l2Fcv5W5SK9NWClqythkN4x3VibQrSS/znhQPFHX5deId1DMq7U
-BLDp7Fz9QcY3dj4lSkkKOjTOrZB6LQ6h4Sw/ImVUr5GYDuoXxGT679EU+tqcyaFnMksouqAxHC/g
-o2p5i7hAF3D49T4GZmfAgQ8JiBNlT6l6HzP0IPMrQ+WDDapqPvZtA6xc9xbwbqa27sWsRN14GPne
-Xxdu8Olo0M24SOme3Hf6QA8Jj7P+CkIEt2QF++SG7IDrIlfbavCWlibGwUnqhgaWhprgKz3JnBSk
-GjT4UmXm3FtFBRmW6ya6rXOYxN7AW/4OQ324XQs9qDhqjh5MUar2Dp1k+CuTdJD9QZ+oMIzJyaGJ
-MFLlxY1nDnMk49mGn5XTrihSjHV3uOEZv3KabTjDajJ+jI2yo/JV3foFnyErp8lW5r8iUTewIMKM
-lhJq7lzCSS/lo6hgABBk4V8YJp7HXtIykDzgFM8/3NlaBvJ4HS7ISKvWhIVD2ghP2sgfjAQtgw8K
-Zf00nca+5w5q9X0VRuDcbN1mp3ZRQ4rfSF36a3Se91pKc2eXTh1tbNNZIEbGTnG7clDnIJ7q6ZrM
-pWytYwSiPe9iQzg11nK1ct0O3JrHrKr0C4eeiOY5GMxTwleTFLctYsDfTagut1bi5J03Qqzoj91C
-/+0O7VmIt6liV7yb2DCrHVO8Ovtq6axcPlEXKE+KS2MUGEiq8POtlCy3G6V4ycvFUMkBKY9+uVE6
-KB7lFxzFUCCaOsga1vh3m4mhLpCLW5oECZ3WGDzbiCY8BKBk/ga7dGDehot0aa9LtDxe1c/Mof1Y
-cb16CfxrbsDwAKw/sWtQMTmjC7kRd+diNt0a4g+AsKH9UPoq9Pqs7g92Nk53ipJj9qqEEZ+u64M8
-68Xh4+W3gu91eea0Isd3sLEFBXurtUbD2nTQVgoP6RXlUA6VuT+qsAR11J3yFozC9RbTiL40Uw4t
-+OPFt1PFGC7H6pqqgjrq1uqf8nZ15oRZJtBd6WUhV+6uESEHqWAk4C6jqkigNdFFi1Bmg58nVFRo
-RHdZCduEJIaGd211z2d+0VZ7vv1FG4sVCM9h3RR8jqgyiMNAmEEauZpPqvRUkwoTeMDCG9Rou7wb
-Tfy9nPlQlnQAtDGCGj7TcoBP4p55U1sLgL8/iwGGq+ut0N85i9UTEbo3KInLIqLdinYugtiR043M
-2sqqgo/fwtYbYl1tdfiwV3dTODEbmxQ5GiUj3mGCQAd2fhqJrUOPQy5FWjiZ00+G/GpnTHRObUMs
-94RlrntQmBvrCwiSbZW14PDIAbU7C5oJaa6Ai9up0wXsOfcgS7TblW59bvzDOt7QgmlsrTuQ9cVm
-BzoVCkT4L8B9GOEhuaL9m8hvhcFdcEEnCGj741f7/kHfrrfZX7OlIEyREuFhqY6rqep8PbPuF/gY
-Olzxugtqp64fXDOP9h+v/H5nszLmMyamxjbzqNZf9o/lUzublUgMdjYTktTLCG4rF6+sPunV8vd9
-MiSQbYMigybO21VYOtHdmhOtj6K7NFfqm1OIS0D58asN3/rMvnl/LnDfJnyAHgMI8jXfLucYbugW
-Cju16bjNOlrDPh3H74hrxPHj1/f+TBj4bNhMIgfuwd93fb3/vD6kXE0zJdwNYa3VF2QwaLGQDyc+
-BE9UyQ3t3DMj10+uqGPEhAIeacLWvVBQYddFz5mXsTL+CmcaXW6Xrp3EJs7ucGt0zviMnNohjE5w
-EEI42D9t3cVHJkIYILdE46anXnEX2cpA2u1Q/j+2IiOI8IQXhsFX27zLBDI5GQXvcqntGq5z58I5
-muozq5x6f9iVC8hTTEGBE//2i402PN0sZpUOhoCFtNBdjmmsNbuJHisIPr2wj7fIqc3oqi7sAdIy
-otnmhFlVY0azs24RMbj3Y4kxiD9Fka3s+pyk5kwk2ZoUrSfN1W2Vt2jgGrEdU1K5fU4OjPK4EVHx
-mgDowQ/NoK4s8sppy3UcsdINTx8/4onwxcWACZkgVjLlWXv7TpfQWXQTkqiHpwCKTmGHh3am36oX
-6b7OQ4cuhG4cDB3C45nHPfE1MYEFbcaTieBibBKVQUuq2Kk56W3YOy8awuuUu1gMR4aV9fsIffTu
-40c9cRrWhIzRLLrgStqGlnZ0Ozh2OVgW9NDAxNly3yv6uYnkJ76ireHoZglcirB+3jwWdjVRWq5n
-LtQyMcF6z9r0oLetUPeiW2sJ0SKJikWfumee7+TKXARI2BgWiF/6208ZwvufuoIZCVU2qM+orTL6
-O1mY3M5MxvhJaIfrOqLkDM8E0hOnhOVUkgu8rqG3rb/rn0DaoHi3EZjyXjM5XbalOuwwglXuXRoo
-ZwLaiUfE/U9nfgknZZ0U/napOle1ZTQLHhHpX6A0MMsms0F3m4Af3UtYys+ZcM/ZFZ94QHe1hmd8
-kEkDRd18UvTSWDAPnJGEbxeoDWwklC3hIVIRKXx6j7pQPlyGbDD1Bg/Mtw+YojmnncQDhvgBBW4H
-jWmszXN2b+9PwjpwQWXGqonhm7V1BFQHhyEeNWNgFPwDbrMxg84Xp8OZTOzEKqs1Hv8QPHHQ30TP
-HrlKUZouWLQNRVSK0oSsE1tndv2JVRhniLU8FoqaivnZ2zc2qfEwkb3DsYAzUtw2eOtUQdUoXXxm
-m59aiIQSM3uVO46d8HYhACUjKmmfesuIMWlSaI0PX/GM4fD7oPh3oih2WUyHJ/vZPI1GvjJOJT1O
-Hje7JHYm8y5poX/ICdH/DoG1nF8+u+Xw4mVWIwx1c52ssgkbCaxu2gckzLouqdhiR+7lPE3Bx6uc
-eDDbISwaKnebRZn39u2N2LdGTVZTibs1iGEe21fMkmn3jt3Hvpyic7N5Tq9HBcAcU9K7rSn+oKm9
-bdPWgYGgtMB/TBMFXA0jhDapmlb3/dTovz5+xBMbhEdkihmXDJb/7ypv7PERrfAi57hMEO5WgAtV
-t3x+v2PJQ1/M1Neo6258ht3WQuKO5sDrczW8cyb0Tm2azWeGV75PC+hEmdwkNlclivjN2Q2tGLep
-1T1TZ7IdRG1MWRDNjF9h7LsHd3SQ4GbRBILXdsXh49d44suRbWEXaDKqUNBKebtThkRN6pp5JV5l
-GdEzCiDzGWWe0e7zCtcOz8pgFO0/XvL9tcJcCl7lCuRweW7v7HjUSndkiLYX6uVyMCFl/cgVAMkr
-RaM6vwsR8AqvqmPauR8vfGLLOLh6OhxAh/O3tZpl7CX5K3aD3hB3yk1qGoXXSjl+Oo3l8VxsLzX0
-Vjh+b+6vSk5I+R14X27ulAdkjSEeb0ppcxTyvDDPbNBTW4ermWbg+kbhzL39fr3ORCxoqpSlzpQc
-sPaCWpcnCqb0oZ1eY0c4X5v07A46ufXj51+nzWtk2IjD9jHXrfVPJmIntK4jy4T8D5fpTmD5tKuw
-VDxTop7aoLZGSUwKaVKpblJmLJ+kjuE8xGQrs70WvsIPfcLUE/ptfUQm0h4/fqr36QdxmUoan1uq
-HkL126dacFOpUAii7iliE2qkEQFJWqCzUL0wyjqzJU8+HZX+moHwX2dT7+NOBTUUlwZcXEJ0BEwH
-BjRpK3fKj1lhqu3DgvrnXDfsxKLroBRqH94o9/jmdlg0qMpyQWszM7UNnAoZ1wwXvsLbJiqK4NPv
-E2oCdqXUqlwN+ibAFGOG0hZrHWRRHQIjP1mmOn9G/2XXEyrxedTOVXZ/Z6O87QmvY1OorhzeKynE
-5hNOhRtHFvCE53L2il0ydOr1OOEi5iZdeQwd4COR1O0hhh3JHEAFiMqLZhtQsMAn78z+PRF0XMxP
-iOu6RYDf5pjxCDuTCVEV/Jom2jFMFxpfhFv8x2/59DP/s8y6rf85jKnV5YMaMgEnXJbJ8pp+Ndhi
-XKRh+oXudrfsZuVCHcHYnBzXWpkDR2Ne7jCZJ1XPzKo6tb/44v8brkB42BzZCkO50DZ45Aj+uG/A
-WP2jN3UGLUyNLoeWOu3jhz/1immAc6Fwfa6D3d4+u2EtzKfAmtGzTb3Gew0VkT0X45mnOhEYSNuA
-QzDI1/mW61P/84ZhBxv51FMsYKNXv4RpBJZYa9Erw7fP5QMnH4jCa3Uph9+rbl4gDsmQBARZR8Mg
-8SBsYAUC1sRnso6TqyAsIfDQ/yCIv30gtE2h1BidyqjgKHH2WBUZfUC5hQr64+9z6s0xwof7leY7
-DYhNLt+Q4TsIW1lI6dS9Ajs9sKvBvpeohr/+f5bC/Nlds2vmgL99pqKd2s5V+Ehy6uStE3YxKKcD
-lRdG0Zh++38sxsQr2nDk2WJbimNpE+MQTdY7AMLs+75j+CUs8WDo8mL/8VKnvhV5Grcglsxc85vn
-gsdkWG1B+0bXzeIeOwvnxnIG50ysWv8v28CJUbK9toi4IbZ+zGU+WHOysO/KFu6k18MXvSA4jk8x
-Xaq97FH8fPxYp3YGDT9oijCWwLE215/eIRwvLOAzPLVKP12QyDUpg8JI7uMzH+v9s9EyMdgUXHy0
-M7bPNhrCzVt41auiujnEYX1fOc0ldDnrqDbJcObBTqzm4L3MCAXmvqyUs7f7cOx1hYnjQOzmqFiX
-UeEqj4x3Qr4j+uUOm77wTNL5fn/QXRcMzyGP0FC7bs5yolqQ9pUKYTs4+4sUy0zfTRsfPv5cJ1dh
-0iHHmH4GuOfbp1KUwZoWHJpgteHCagxRcwON89xcpRPvbs2FAFuoEGg8r3/+T6ClZY9CyoFbXw7z
-cCdEuNImUP5eGsVofdfqMP/v04/FFqTTpOFYD8qzeSzdypskiqkLcBkjYy+030lpf3JONd0FigKD
-sERA5/LY5pWaguFEuQzUeJWOk26LfwwdZqP0oWMgUlP5ZmdO8/uvRVw3GcFJYUmKuQUF60Giwhlc
-OH153V/ZSxpeq/2oj5+O7sgqVJvp5TbRXXM20d0p4PxAAslwx+iqXZEVf5aVbtZY6blRWO8eyNIF
-ZbitUidrTDDfHCrcfhulVxEjinpOXopKkbusiz/do2cV6lPSiXVgAg/0dvtBBoXxbWM53GSjXntZ
-6WCHM85jpl8PvYS6l7YuRDq08hx+3C7rs1jZqedcwwZlOREE1PHtL8gpd1bRLwymJocvkzR6fGUk
-ZvHZ+5/rZJ2zxcXMzUxofLuMikV8b6y9PKRhTuDq458SovHx47O15tpvrhTanuvIkBUPd9d/3y7S
-JGXbdK31o0cnLCvl3kqOhWrvK6F5TL0hwUH4xcyGM3vyXYthXRXBEb1dYzUN2nxD+IQ49k7Wj6m/
-dGPnqhh2WhX6uZUGy/L88QNul6KBrIJAMCiHtisq6E3wSPCWWKCHogy2pugGx5PQ78di+KLgub5z
-ihBCGbdp8PGi2x3yd1FwfnBNjRRj299LcR4yx2qKPTw8sns0AvlucWbnzCrb2/l/qzjkvLq+Dtfb
-nDeA6AhLYB4tRuo0QixR1n4sTko+2vJzpIkTi60DQ9CigXozJmMT9ZuqYlSZuTIS45C1Ruk8cKFx
-Y05d+MmNz3O9WWqz8U0rDO2lZin0iSNChiI8YLDy2ZRtXYX2D/MxaK4RSTZxse9FDPseh0aCjHkY
-QY4B3BZ7/9mdAEKLEoI4RcuJJsnb84XqYElNC4FimEhJFdvGuCzmn428wD9vVtmcYgoSfAEmikdM
-QUMP76wXNRMvHz/J+w1AOwJ7VgdrF5pK9uarTLnSadGCnRqDi6zfYsLTIUeku3pL2OfGJf3duv+G
-JRIMFqNFAGQCyLSdUjfik2DMA1AWSDpOMuSMCoJtu71qlKK+gYBb7Tur748YwGr+lKTaBU65+ZnY
-+O4UUyMz90TA4HJWHefmiYsal/Uitp/dBBVAjdWiP1nZuWzq5CKwPHinwDaWul0E6xeshKOXbK4L
-d6fXunlZMq/OPXzq662sGINCCByFhZiBsokVfZ5PbmxNo8dAvBj2snS+4Z2CjNRI4zM13uaJ/rcU
-WS7jWsGxGWn4dsvroZ1kJcmtZxUIwFseMOhzRXwuSPxdBfzn78MwBnPLRliqCiupMkZtEzOKo0EV
-faWryznUbkvh+98yQAzrAD7KVXPz3vDOGQDRFKj0g9kc06mer3CS62/MPjIPMQUz6q7JRIyJhmvM
-GKSCWLqPLky8W3w+6bmDvjmEf3+OBR6wHkES4nf9SKfUsNHDLqKap9xrjSz/MmFpsE/Qt50Zyv2X
-G/bPGfy7FlQ5jY0DgE9u/PY7GkaB/fPMd4zT5rFH4IN9ln5YwuyIbfHRrJoffTL+6AUjdIzwa2n2
-zxMw9EzWV3fZBd705/oUa6zc/CAucocL3dWg0m0ZQ8gsUOY62OSronH1PwUesNll2QJ13uGfWWb7
-LFkK7QFfuOTXkuBIfYaxdOLlr6NsVehKkCYw4Hv7QsJm0XosQAcPehg+vlZVBXCIZVDHaR58fFxP
-nKE3S60/5Z8aqxazFs/rtos7S7nI2BBXJKP9508qq7icUdhs6134dpUGaWtY5pyhfoniveZOyl5q
-+E39P56FskqAA4JEWJt95DJpIcd+jX1UpekPlNHtjTIo1sPHq5zaHNA9OBL0RwBwN1EH1kUkhwJl
-dZaI9MDY1thGFSKiXWRE3ZUqcXbQeikv9SEdvn1+ae4omGUQPt4fFOTVpRgL5IU6zbnrSZjjK7MR
-lAvk3uZdgbMc9mmWdUfsP8cPfL9NIM9Tb0FZIpkmJLz9gMoIvqM0KR4ejlFfp1lZHWO3PQe5vH+1
-DjAgn051VAq8bb8+VuvBUmUxe0jzHlTLfB0M5zFcrMsBFxd8W7ujbTSf47YQfOhIajgG0GbVoOlu
-rkU0SCNldzmjPsWw4NmVmIMfpdATy8dmVsb4NrYRIAw2nenTx59z3Slvw4wjuLcgNQC/wKvZLA2D
-BkFZxtKOBSlbn8J0V8m43jHvCMFD15zrPJx4vaxnAIXAS4bAutm5s1hCI9LwxMEIOfOnsrKObtEr
-wSQzeUTw+YjhnzziSXxuDuD7eLbignCVoJeye7Yd85iZgwik8VnE2EjxM7VSgsxo3b3EZ+tMPDu5
-FHU7YlA8Dbm1325U7IRGu1Dwyilz8Hk/xuMgu03kgE9atxp+fPwF3x0LRu9BqrAMdu2K2W8ubWVC
-Qu2YCDHMCQsPpcHmSmbMT/t4lXf7ZCWsswQBFLIixeXbZ3JDeGcLVlT45RVOu5vHOC2D3IrN30jE
-HCzRZHpu3PC717hZcvMa9RwdoMNgAx/FpwyEkf1JbdEFRZ0PZx7u3Sv8y8aH6kCCBX5tba6G/2Pv
-zJbrxs4s/SoZeQ8V5qGj7IgGcA7nSZwk3iBIicI8b2ADeJ2+7qeoF+sPTNkmDzNJKzOrwh3h8I2V
-EokDnI09/P9a60uWOVFJRiJSdG6HAyJLygCLUPXOsHh9FUobdOPpdbKqEuH+8hESLjpmTotZ2ct7
-a9Mm40Jwk728s/ddf8vzF5rtCy8WrxaDXHcJJH15FQxaGugnFC9DFKkfJ2+EnRQPB7PhjD4counj
-WL/XIXp1SZ4YZ5dVvb2Kt3ePfYXmGJPR46dI+04LJ2LMrcCrhXKuEbB05rlija2bxebtEbl+/S9u
-lLMZO7VVfshF0Vy+vNFiksOo5vCgxDb1h0Bu6j3jRA+Tdy6z28xkznh5nZ1lhw3jYLcF12nCu5sq
-BMHhfz08v3/7Zp6OJG/djfHybia7TzAAchV9D2GBD9Jjo52S9hKCQQmsDd03/6jzD0nR9+fbt6+9
-e/58dYfrwH22/+IEXZjdStZS9s1ABmjh/S/OiXP4o0vr7pNcX/hn15mKiliIiuuYF9Fei7v+Bl3z
-YfTOF7a7wuxeZWeFwZWfFcp6N8sWREhAfmBQBc077/Kro9LuVdZ34tm9GGmnmdn6fZ20m4c8uHq0
-9u5vLt8DaD4xft8aFjvTLnrmYtZSLtNukJ8GxBD4N2Runi2Bc02M58E7I2Edy29dbmfK9QBXMn1w
-ORk8kP3qf6n8w2/B5c07l/mVCeP5q7t7Pi/7qndIBF3viiCsgHpRADoocEM7vN/73IfXRAa994W9
-M13s+qCEazResl5zDDnb8YKlm9vF/3J9mvjnfXjPscAnc/OdheW9729XY2+Q1aEX6/c3Bw/LVt0D
-jLXpt8lpehD5xd7gv/Ng17X+je9P35lFchMrJS7D9SaToOR/pk/wZ0BG2zuPc31V37rQzpRhKhCJ
-EpqXvlaR8D1GOCLqbjgcc+e9e3pvrOxMGq6T9W61vmiu9WmI9lMikxsd5lmVk0jyXs/5qdT21n3t
-TB6Zq+gWuWO/PMDiDFxD6GxBwQXXaZiG3/DeMxGr/rf37vJp+/nWhXfmExmXIAVaLmxc6of9TX3a
-HhoP0TkVR9K3m/v5qjpMz4xz6+qdEfPe492ZYGIxpXa9jhiDMUMAA+Nz3GeXF0S+EzSbahOHbuAG
-70m3X9VbduZPfWemmfUqL/r1xaAHuU33tfCqDBb/MfIbHm+91f131/FfmwDoCSLmX01z+Gxezth9
-7paVug5ZWMQbjffDCD12DmbgHZUBJL+L/pxg671uzzz2Dt55yr82rz6/9s5TJlZmLuiRsFcJ5ca+
-KbbJVm7nMN/2B/r+e2WzX/tKaSnQt0BXR19850CQkVedzV3T+x0h8KqGCZeUKnN+HKouzJaLt29t
-dyJg20/pk3qHYSD2R7fw8qnaItWjpDCXQDGEsSUmiXBlrUtBrc3LO3POOqc8f0W4FApPev1YkVyH
-eKyXlypc3Z70EYBWhFn9qPaqCl2wUbwzh+4+vfUqJk0sTgOraXa3tGICqwYLSeqRwJx7Rvakc9iN
-RR+os16eZU1ZXuNo0s5/+ClSxOFYxaadPqi9jp9nu4mavISub0A2wp1sNsSzMqeaorwgtb54byzu
-nuS4Qc5w1G4Q5Fu4sHbeA6A83eI5yhw41Vh5AREY/TUZcEQpdVZt5FeFNgpyX0uH+FqK273iE5FY
-nhfZHN1YohI1OQLjOB60pa1fIChpQQ11aeP6jQo+6e3n8mrzTduV9pitUW1CGkb76uWDMWFpVMJx
-YFlq4wh6RCnimdmQ6NoknHpwr6RBW+OUbQGdjvcdzccvce/FbqjRIFy2WWPY7xndd/eX60cyGB90
-uEh8BWf08iMpZDWlwOKnANJCTt6wofswKcrP1P7JJJDN6B7Ojc6ym47TO1vb1y+bwZeGQo2SMEV6
-Y2d1ItBVkTMukaAT7l2LfuNakEF0RvDme0LRX7nS6qix6cRTVUDO8/Im434l33n6QqpeZqOmwPMU
-1nNGaCitqse3v+TX7zVVTMpepAfg2VB3u/Kxo05lTaJV4JCIsxHdBOepjd/poLw65PC1Ya40UGXS
-Q2YJWO/42SsW058wsmUYg0hJIn8CLOpnZWz4DKjyMB2WeuMUUbHR1cw8oaFfPFrlrL0zg71+9fgM
-SG9W1xJKs91i27yMMq5b3i6XSGd7E9eRcmnmKrJATxCJc0CKMYkuP/x013kMow9qH41i/cv7Lq2k
-NOoiwm/f1wThzGa+LUvH2P/xq6BvXvsFyA4wzL68SixH2lNzNpL2AtaTQCTChmFq//DzM1WDG9Eo
-rNGufPqOn32H+WzkjkAbEqSyqU4Ks9fCVCGERhIiGpbDFG1/9K5W2QaiSpogjBxzZ8zos9oXIGmJ
-iV/S+DCrleUgAs3yziHh9YTi6hbWTW6Krtsr3SHmX7p6s9sHYGKrUFWJwSnIat9XXUtBtGFJAmKn
-fjyIlP67Kus/vkz/K36sz39ZPfu//id//lKT+bQqx3b++NeT9EvHd/9N/Of6Y3//Zy9/6K9n42Mn
-hu7xp5P7pv9pO1Rf70VaV7s/8+JXcKXvnyS8F/cv/rCpRCrmi+Gxmz8+9kMhni7HZ17/5T/7lz89
-Pv2Wq7l5/MvP919Lnk7aiy79In7+/lcHX//yMwUxnvh/PL/A9789vS/5wf9d3Mf1ff/6Rx7ve/GX
-nxXD+rDWqlcpAPZ21IwUmuTjL3/lftAN9ghcAQuijcz/55+quhMJP+Z+oPvDdEZ1Cn81dT/WWd6w
-p7/T1A8mEp1Vv01WDPOR+/PfPt6L7+wf3+FP1VCe1yn4Mm7oqcT7bGfEysicss4r+Ect5G8773gX
-K4Tzx9A/HWlZyTm7tVluSDQd7oGcWsypozvpp0Q55ZqPZZbuLbANHfbqtNhkZM9V7xKP0qWEPTso
-zFRgYrp4nPO+uLQr+n2Xyeimd9S1VWWr4Pi/hJowfYzJTi5IXcuIXiqbJj8ivxFrjFHUxIiDdTCd
-TdfXRbanEm1HFqsd15gahPlxmAeH4D0ySBnk7dint16pNc62SlQQhoTqUz/UTUU1QhMUfUpEsQPB
-1YCXKUD33swj69Amtgktv8JEUX50sojUZalk8ZEYSdvwFa0YLyhjiyKgdezoB4TtdNWplQM/8dlu
-ON/apJ0gtGpeeYxVotdgEOvyc0OQUr6vNnNEPjqo5tnXux6xUYVs42RcgAErWpfEhOLPbbXROxjI
-WzK+vMsERdyaWI11HkllCguLLJ52CZrBNtOwasb8dmp6t9hfBlPqWxlJTq9NmRe+A5ybYFUaWQj6
-Rn0OTIgnn8lRE9o2hYdAGTDWVGIGh8qowqQh0DDMXC8/HUkAvGPdMsaQdCFTwfpdJ8eDsnJRyOWb
-7KAluerSEvDSN5Ul0GfVYhw54uhN+21wiXRjB2ii85Al5I4toWZxfw1XmIVJ2mp20nVmlvn4OIYh
-hKwAkJQwk+KBQPfic63HzWWM2Oi+hIngwoNturOW7gGay3r9BIlWN8Z+5DXeaUt3l/4Ov8HcgKaf
-vJOB2hkYLARW3wxaFd8Sb1IV32277KIa+8HatqPSdwEZuHl+IjW1t7ZkYfJbh6LPB5KoiW6HogVo
-3BdEeR6W4FLKTV1ZDoiNylUusfSlbJIsKT+5nlzmA1FDtQ9LN2Z5ZSeg5+BySqDLpU2sAsATt1oO
-J7mM7X5BHXYh6cFUbgtHG7qgR+PZBilyTwLdZJdeLE4nN0tMYrpfAWX86mSjzW4Papx+pHfapIIu
-Q4LvM51YVwLtJkll0OTQKRNPA8OurUmrs51s2Ki8DYSUJ5ZR7HNmFUDPAAxT31DqdgiKQQFIL/s1
-l2+yht7bT7WutPbsNnapm7ZWfivo2QEBTV0SngDKktf2bCL8PtM8n1l2doHMK6sw6R8qqJ395n+v
-CmpdJp8t7n9IBfXvBfHZgsj3uYZz/faK+DGtf9qjGfn18aev9U+XQ/F8bfz+098XR9P7QEMLBQKS
-B9JAGC9/Xxwt5wOnB2/d6NJWo0zwbHHUnQ+oKvk5zp803HBN/2NxNIwPiDNYF1WsEYg12CX/wOLI
-pRg3zxdHlmUURJ7D3p+Fj1Dgl+OKvyRpDXkxWc/IEkBtnxmDhDeEU9SgOHsOIpOEcBL/zR4bGtm1
-S+H5s9v1ZOKqbqnSShUQ6bpL3QOI4RNfj6UNuFrc3RNfqHTnS9Srec/+ky5jsllKY07u05w6hnkg
-AbcoN26vwhIOrNGS6YkKoscq9kmdLSSLUdGNGemIytgrXysQo5EbWDrRDCDiHauK7mRVLRDQwIJ1
-R6qMiMczSe4FiVypA+XdLgblYVbw608sCoinJoqTLnSqGKAUORISIEcbjWHfefzG1BPdsZsNACpU
-MArnRWnIb0uJgjwwhJveEurHpLbgdtDIqas9N+Cwph52qiEiSPJOfDZj+838HPzTF5XGc7stsyTH
-/lqk3mVKL/8mqrvuJo1EfQl7swYJRrbkAZUafiomavgys7X2zKELesJT55CcqeBVB63LI2L5uuou
-y7v6OiIBXQlK6JsPxsJJGJpsl3wTQnQk45NXu4KG1nYjFliAKrCfSOcFCz2tZKX0PjUSk5xMR42+
-tkbVXSyq0dibwp2VYQNSrMS/MaXNuRuvCJl2kvpIUp4ZHeeu9HTsyvV8A0I3J1TSI5wgUOxscNbc
-5zw5UlJcYty+bgAU9UZCCx1AnASE6noIvl27zMjtd7fWpOq3jZZ71/VUJ8HUFfYK0hntY3VG4OEn
-0zQczfYsCKeNSXoMnE50lzam0IpwTCU7gyMbH6t9x86DTRysgba7nb0hPY7ANANStwtCxE1xkmZI
-QtjLjbj1k4L9jq8Igqf9prDcMtCweB9jG2B/AaWKGqCwy7gIgEQoX+KudD/WdQRxthsS9bxK5+Wi
-8hBZb1o5iXFfgXH1FbOadl2qQw3TIoXh4vcOYy9gPwvAChizdUIKJvgvvdagV4+tvIEU3n9W2twi
-NXuytE8oyNgStfwGCdJvwjSNFqU5GEajQG8Pf/PSls585pjlfNwjb+3Yu+XlZSo8HdykKFPHN2sn
-a3211NhhlVSMWxAS+fJIAAc2jzhXlbvBEeMtQZXY3J1+yK8qgk8uayLU2RDndnQCrKq2fVUqOq2Q
-pCqJTIZJwFa4Kvut1jltR0gk9Cuf9bX4aANMetB7Ycxh1mvOGd7H5XOkxgVqcOCGV0DjjAuJBVJj
-41Xop1bmqJRFiKCHIzPr8ItTXY8f3CXrvyB1Mc/BgbOTrBWFaGTRqjVSxlYSPKg3drSvK/p8XYJX
-uuq1scQri6vzU5uRdYmUo8tvs8iciqCKpvm+B9rSbshfN7+M7oDTD+oev9glevyQs78Ed6QZPGeP
-C34ucYN+8txILhvhLNrpsFjkZLUoSYNUcfGCGS5EFDjgLamIMXdzqJhTxxhB/UAJrddxfidQAoNu
-sqFoJoRfQxBXU/lgywTIatS3k+PXRMVWIZt/NiCqA5uS5+jegTTyPoG5EkxcSi6mjYib6caOpX6F
-/T/qQ2XKmtOyqCp42W2VMmyHrJ02HaqcIgCfzPvb8E8+YrMtp7DB2nheZl0xhF7R2UrYld0q/Dbn
-DJh0rzjfpqKrpz1O2B6UYa2RY5CYIgW39+8g6vBfMYjaqJDLZo1omJme0qgNgqT2K7W/ekqkRk/c
-+mMFgPK3YqnbLK4AX47C0P/8WOoF4EQTjHNh+6+yqRvgQVbAck5O529kU7PYx0S8TixnL7Kpm5TD
-md82bna39ATjnv3PxVTDFDGT0Bl6U179K2VVdxaLXWOtFYf/D7OqFU6m1/CDiOF5CqwmyQIqV2XM
-EvidUXSw3JPx4v3Y6rlFdRnmtpLc/pJd3faDE1/IUbRfqTbJS73qxwaK079wivVkS0LqSbGxSCTf
-jbGOJ6MbQh0e/LcfirFuqr46T+fKPY/UPiPv/Z8MtHaKVl02C1RHylW4Z7ywWmr3qCwJE0+3co6n
-W89YonI76QYu8gRF2/dwawn0td/EvRoVwLLjX0u3zhenhvcB+/Hkl3TrTrf7A5lokuCnWhqflhwU
-bfAi7drJzL15sRI9KKlB9FuLrHnYL20uz+fZNOU2G5dlCFiF/4QMbDvN15KMVosqu5TPk7DBw8XX
-g8MVXyRhp8BvM3a71i8ZFf8+Sz87S2s04zi7/vZZetM3//V/u1RwjkbdWz8/SX//2e8naZ2C8RpZ
-9qQ2JJJ2dQ58LzOb2gciHZ/awxyYaTn+o8qsOR/IsyQvEF3uWk1eS79/qzLr2gd68tjJ7NX6R9v8
-hw7SCDpfHqTJc3FRbdgu+YEmvcG12P28QFN0RjlGniwD2A2uQ3z9bN+nyiD6PdJtZbdNPTaC8CbM
-XA+wQMCN1YzW8iWt5SZAerWSBex4yPZmejhAMV07Nil3zsA+IKqd1cIxcbtghDvL2Ms7WzzJ4rFp
-83J1GCXiSCwQ1Xw+wCwImy10ao3keMx7ZqF05Sc3q5p7kaRsVglwMiT0mqQ+mCPCGzYzfI+LHoBB
-HAxxHz9UBumEftX0aRwY3ahQy1WX/hYQgjsd4caU14TDwCxzFTvu/WgiM3s79Ol8rzhE6GwI0+M8
-URaePpOyOSkUnGuomftWYY2wF8ih0vap3BL8scgu011/Ks0kPxlk1sV7LWno+qUOZDPOQd2SBX61
-qvujIBGdc1qhivf2HCvyxN1UAnxFm5OVW4VGOGx1osk1DYAJUUFdKJXJm/cyVZ270JV58pkTqnlZ
-Sn6jn86KkQVyNopyI7SpO1rK3LpcKs/NAg1YMbn0GT4OKo0W+UOpMJxPUaHQuYtw+e4RZlVfqu5S
-fLKxJiz8nsL7bOtp8bDMTjUT4k/LcmPN3TwSfc1DpbPQmOH6BRJonKSSfKxsjNaY3sE8N/se7I6I
-lkdiSe17z871+y6JisXHu5Q0W1H3s8qZeHxCvHpQMGA3jXeI2mMjtFOzTwJX7V1xlTZWfCBbrc7O
-QK3rX7GmR04oTWPoNqnQGy9shS2RHhtdgvKT2AZxWoyWLsielKa7nZJ+/JzoDcdGfYBPt6Je0wtQ
-wiRc9zN5mP6sCOVGLHMKLZaaPegZGbunDufUyW87Gu/+XDnVkV6MThnYbQQFvGqFBL0kHVoZpaHd
-RVkqE2o0gocQd0WXMTYYHEBsmpp+gNBLE0NAymGt6efswsiyjq/BrWEo9SrE0tClw0Vec+NxTmys
-3Mu2fZWq6rZIBKVhLxf8F6OtYtAcQ9cEcVwpEeh5LVuJqzFjEUR1Bj3drgfbn9pB9fwCpiJ23Ck3
-RUitBYodlE3rs21WarYHzy8H45GQJ0T1YUya+KC2x8XzjVYMVMIXKdPNXMvxmxyGGsrJ0mm3nHn5
-LXS2rG9Nj+B9k1lYq4DsjMV9gyw9IoWmYnzh7BLnNVF3FLWHRD9RkIg4vkzipfMp5Cw1oMDFs32e
-pHsaeRS1NnFh1iRgYUj7Gs9DnYaWWmmXTmvkl9TRmlB0c/Igem/Rjs3ac25a8D42HQ9Lzjxq0T8M
-bdPdZ5HdguYbXfvW670GBDzcRcbanKPRACmsGaFlV+lD26sF9QlAmEg009rxQo/XACv7EmXXWtuI
-w8WtmcSeLQG/Ulff1Rit4rfnCq11pn1W6v5zFVqkD71wbuxM23/ARvFKFL17qR1p0a5JxHNmb5MU
-Rrlp4RRW8Oywi3gtCgTh5NUBhSdYJrHTgFroHfcmo6G6eftB79R+WfS49zXD8ruxY+dB/05jx698
-nS/8D7vCtD/H//COVvWVH+7PUTT/yr0+k26TE/hy6P4xOS4bm+el+x1jwi+l/WfvyR9QGWvv3df6
-UZ5d6k+RpK9KsWediVe3t/Nm/n619jsy9Fdho3/URrAOgrdubKfl8kdV77sb03U6/YcTCF3Vy+/u
-d7oW1g/92zeFsOPlVf57fCXqjqvpd/pK3ruXnXnxdzpxXmnuXn4xrwAiv9tY9CRpfuu7WdeBZ2/v
-n+qeenuSwrP/8tp/gpL97bmKdKiXV/zTNPvr2HvrKa+f69lTdn6XE+49J8Rudvyf5oRYZ4m37m5n
-FvnTrB/vXHdX1Pi7fYy/dp3nHoSd+/uf9D/saqb/Kf/Dv+tOz+pORD+sDrbfrjtd/tf/qX86vx+K
-FyWn7z/2N/GG+eGJQEa8m4Go/XnJyTI+kA+MQnkNEUN8v8Yg/E3ZqHkfUJCQJ7emLpJeucrQ/15z
-sqg5oY5f85+Ic15zuH9AvIGB+OVLaSIHJ42epGKyxdbgtp1BO5pGbg+pl4QVJgQ36GzIlhs56fZj
-Pg/utZBGfgfmrZeBRYHpXOsXNHWxofVT4LiZ/OJm02AeeWOcY4NW8vikcvrkLm/ApPqj7kUnbgz1
-Y6/Tm76GIm2O7SWciYGSTTTLTwjw5IWZLHK8yAyt8A4HsnmK8xg+s3rcNl42hHmZUysmTtO4I1An
-P0NuYjZbjepBc9PqRZI7ATRVbXiQRaGi4BDDkVIOTeYvVWzfZt4wnY6lZWxVJdLmkHuNAEAosyAv
-eTDm0nenerhLOz1RA6F742c1U9MqKIAxu34s2+l81KVtU2oQ2Ve68EV36HXCa06loK0QYq6Qd1nV
-kl6fz3FnHpdeixJtiadR+IPrzFR4Jiko/iYR3VwRjdivwKy0VK5gxgVxgvkuzERpPMZNNx+7dYZg
-UENwSeu4W+D24iZXxYb6updBis6o4ehTAo2WeL28CZQ46hcCV/ThmKo0wdegk4BRt5Om+JGtewRx
-qyueVkUO86XKveFS9Fn6TQyDPBSpnd3msExkoDW2UKDhquYpycfdCc6I/qK3YjSNA5k+R2Jo0z5c
-onTB7+iK3AvAtcoVQaxpnyM9s0/jyugQW2q690iQgsh8maa267sOyZDh3KBSCCav9K6kMcfeHlHR
-3vncF03sl33hJn6qewDa01KtVjLTojRbEu60L2qTOR8ZKPUA19aJT7u+4jE2+bx0YIGhv/vwXrXi
-hFGOaL3MR1CleHMArcYGUfIbN23KuxzOYOQLIJfbDplxGy6xV31BelhHe16e1F94y8qH0RPAzxtF
-F6PfmnNxk7ZRjdSw1kGCaxr08lHAvMzFUpw0iMlXbWMa3URlk8EoryYq/BNl0vMF7JIdwq3rkZa3
-SbGdXNnHPhXdFIJomnGD9NyJhyMl1/vmuHK6T9Ed4w2n0vipW1LUMgMwvSA1BSl1mSFx8Bot3z6i
-ncXFCqM15b6lLAhjDNimERjd3MJrEcHfC8xY7a7QFgCSbSnIBLGTVlj+HAQzfiQsgzC/rClM+J5u
-QWL3YpKRUFMmJrdQmdyLGVRxEcRKpBxLW0OKAzwtv0oHJRuwnypKuYljq3d9qkWZGubxMn2EDexe
-KUYyfCNRmkrDNOTWca4bdGuqLkWyUQvpdP7c1vaXUVtlP20snTu3q3q89pUxUYtTPcSuTp3daEqV
-I5GYVKGRO6emUZgNS3VbqWmfbEutEFmoMnQTaJaZYzIrKL23QaMxH8fCqyRSlkVej4qZUXOdipQw
-JXXRxj30LHLxF4R2eYBcBiJurGaCN8Q1lwmXq1p4QQP/9ZBHq4a1KeMThE/12UAmxsdI23OtU7Me
-rCms+8j4KGyH8udi6wxFLbEAyODxybaVJDp5zAeS2F1MGguzTGSaVIet/s6B+e4cOlBlL2C5pl9t
-WYBHT7KUwixMiYqfjmMEM3oVa98aAEzUEU2hbKAs2n1gksLY+WUr2vMxta3aF0SlJT6qv+ZA6Wpp
-+Wo+5f02HovpqpdxVoI1jpxPiElU56hvPIjLnRF7n6vFrk0E5bCMN3TRKUvmvRyvYiZC2OxeAokz
-jmZodmYCusxXM6DtKIDa4qPMexIUGcjWuFVcI7loXWM+lGRokbhPDne1acxF6mFR2uUxyralP4gK
-9rO+zERB06GJvdNMqdo5mEtNu0og63Z+X1R5sqk1YVxSLY4bvvLZ+ZosHhVDvc7mj7Fnl4+TTamW
-B90pe2uRe+OSEXmYS8WyYQQB8SZB0C28zWSVkLHTBilVFVtUOKUyDnIzV7b5IJNRcYJSV/IO5NtU
-5+vSZK2qPxU0qZn31aGhOCl06rRgXAPPTLujzqgQZBldV9tBjJjZCZ1p8fCPwBPOfAwrZh1oi4gP
-7Ho150lCVB4NZ4jto7jP6iKMil5DP93HiY4RCWnRMRoiuK054eKfCytfps04zQ6dm6ajJ0DFGaZY
-jTztbplStfKlirKamBQLmWTczvIyLekW7FWyUq9aQC4uQYbq7O0XKADrQI4QFzZO2hQomLSkKMA9
-DNnoV1lStQFS/fSot7JlQiblVcRYofP2AtOI9M+qWyvtvmV24KOMqjXjA9UpZyOQdiSv3HjFdZtx
-D9IB0qxt+qMxohzL3ZHnj9IS2WU8lNPDki9Am2J3YJio5WBeA4Mdyr24HqaHuK/scr9PrWnZVwfB
-ZGW6GaOsjseouTKjmcR7g5lx8I0RcZ1rxIMd2lPr3Uknn+rtYHq5DF3didS9Gkk3xW9SeY/RHtLf
-slgM802lRk2/nci4m1iaFvQOyP6AIbEuzOl+TfeG6Qpx4BSyd2mawO35iK5VxV/jwZP1Vpoz46FW
-Zj4+Lo453cv11aTQD/2s8a10vA657Pjotd7w/yPXW6j+U58nQtpLaNFohTXNx7mTq0U4Dkp/SSoZ
-jmvgbW2QYTubt7Vu5HGwWgfSPVNp5GNuOdWpl5btsjH6avqoM1OaQSuySN/zEsPt95esMtsgriuj
-3ZetzNyzeKlG/AOzu/4q9D3At+eEJ5+0havsjxK5GIs9Fs3DNGNTc6BJpSYLQUaqHbatywJCeiLt
-qVZ2qhWMWH76g6FTeJBgy+rAlrEsN9Ggad8iGPUtqt2GHLdsGat4P0tTzQqtWJnHTT/Har1pK7u+
-7ZNJA3ihVAqSSkNVgt5Y2AA4Mp5r7I1pjrdEW8ZblKtRdBALFKhkqcF1JwoYEybpwAK7nIlz4cGF
-Dd7uxRndwQMaOnPMhqYyk1PVkN10FEOvNw9VZR3GRE25y0Xv9WlxUGuG3n2yarsLRqm0VzKxVSjo
-vRyivRy73IGRP32ImlfpoC7UlBeFuF2b0ZE2ejj29B/DeakXb79pVd08MlJFu668Sc8PGYE2OXbD
-MIPdbCJX3wCOtO+Iksy+5oOoylDKMm/3ssGBub4KI40tTSLjsztNYxcaRVaeKpNRrauXWu5VQuEW
-KqUqPuIgjrxNFwnuBseTCiFpEM1t5KY67VeHscjey+2UTc0V6OOqemqHPcznSwVN4+d4kdNDRnQ+
-Q9qcmb87fKRxuGDMtBH9mQzSrmp547IEFjWDX2MgV5PKAI+nhX+vTBYjyakJ/Q2XQbaX+eKWXVBl
-tsLutNLMa56rfJR5YSwbEz7TYS1LR/i2NmWfin5h/4AnRyUYCNqygLXsGrdZqmY2MtiCqSzqU1fz
-07RGrAX4xTxwsZ9qQVwui+4LYtqyIBodNpRj34mPDgcoJtEh8tihGjVdDDeeN4rAzeSqXeuQzD2w
-Q9TjefpWO/nshBFEpzagp6X0a2OueAQchL6c40enbrNWJl+abhQl0GnRppsC+mVYFCO9tjaGme4n
-S99/I39cqQlmL4pbz55oDo4ob09ac8qszbDYy3mcSftmWQQd8RZrek+MtdSu20TV232+cVOnYWmK
-7SwJztsoSjekYZcb1ufInZcocFqayaoYWKRsnu2wSTWRMMk7SnfEbN+UQZT08ZWS0oi/mFqsiBt8
-YxVsXvKgjC16bMv2xzGrHgxXKY6deOzvGM/J56UfFSvIFE+NgxgvDnASOGUDj1IxHSxmaTKFAgg0
-fUc5uEBhtIZPsmjsDNrIXTcaliUWEj9cDEZTTsY/r2b0dVyYaQMJQP5idmvjOG6tZAn0wi3GPfZO
-rcEeKs6zrUhq1dyXSrycdGMyVNsxV8VXB2Oat5FxbpqgzXQcR2qGeiIYM8iYzMrxcKekuvmR49qs
-h6XTLuTumXXu7uX1OiYAglnVxpgGxWIXaUzztu8AHWyGzMyOnNbtI+QNo/ySTZp20hdKotDmWgxO
-JJ3sYozhrJd0zmVnb3Ia2ndduU6GpjSHj51Manfv2XH//JfC1XPvzlPs9rN61np0xhGIfZW0bDIT
-vZ26pDKizE9SfPIL8dK8w1U9274c3fzEKPLsLhmW9pZ8ruKrYUWGERIcbZZBog6I0NusVNiIidLR
-efLMEWGKG+zh7Q+405tbP59DF9QlZnbNXHV2qonGbCKlrL04lFESnwjSZbGZmfM75trdnuTTZQzg
-DUQd4NQEQPiyaDlkZREp7piE3jS75VGX5pkTGtZIw1dt81wNkESXcj1tjw+LmKzrGlUCEu2ira5q
-S8j71GkA87597+tFd74b5guDuFm2z2T77zRIlBUhjJotDe3uSxkN2RI2hM/vCzMFQr2UP/qkn7qT
-xBO7K/YaBsPLR8A045gKSPTAakW8r0KbZiF9N613p6dASANeaTIsoaeQ5U9e78urDEVqj2XNCxWn
-c4zfgdftDFW3t1FAwrIgU4Moq6baGsjNzt9+nLut0Kdr0x1e3UI66QjmTlfSy5C05FlpkE44VZ/K
-NjIW3vEJx57bd2gP4jTX8Ulwlg+MMR3noGniStsg41USxp+pOHtVwXp+2Uh0Ba01L18akdtfFSOK
-OLVGFgccTS7RbW8PmR6+/el3GghPH55XFPoVznabTImXD45kykKnP64HUOQ4XcvFZVFYI44GrDw/
-fCnQZ5TsKN+R1bKba98UatLlkOaY2MdkE7XVEk6GsMLca7t3Xrz1634xxImDofdObXHlDhJj/PKu
-shxv5DRI7qpX66ME9cWeEi2reMmJPwoia/1IDlmQlZNxLA3rPfDhqzdsvbxFVgCMRYaks9NHI77f
-E6JCccmQd/eUBSmnaXes6apiUECp1Yu3n+yr2WwNwMHBj+KObGL7qb/8rDfSoK6J8GpELEe5uZ8X
-1bhp00S881Bf39X/Y+/MliM30iz9Kv0CSMO+3AZiJxnct7yBkclM7HAHHPvT94eQqipFaVSj6Vab
-zdhcVFmZSsxIRgR8Of853/ntq3z6quRgUQnXWFEoNd3jOuOKsFhOt0YS3Pa99e98Kp8tf/weNKks
-TAdmd6g8Z4rTT7+VU+mlTPHprdvJSk9OMTq3chKceL1KM9HPcmmY47vhRnm0T3LD2LHcBuU6r5EM
-EWvx1LFfclHgUlLQtTFWabHuVGeK/bTEelZGKxd7Fk01PKpNazyM46we9NSNvqbAj/9dE8cffUiI
-0jresSXHb3/6TiZSQ9Dhnh1aGPhekzx9gbiV3/3Vb4K98NN1vvK6Sz3Wp32tEFORuJCMw6mwitdA
-FwioYyV/QQb/pSHHtfxe3bfN9+8tUIbPJIbfsBz+76U3WIRAzZ8+gIUP8esc5Bd8w1Vavan/2H1v
-3lL1s7v21x/8ddRhBV9YCtj/Kbw3MF8tu9Ov7lrH+LKckZY2WX3B6Pp8a/456rABPODHDMi40viJ
-6PLTqMP8ErCBYwTgIAN9gUztXxh1GL+siD+tmBzSbC5VoGGYdmAhPQ9Gf3rY+rFCYKpsVkzIOze+
-03PPWWJ7jprEySzMr9RikMDEz2q03KRKXw8t1Zqh2RX7yuuMt3oegkPmp/FWeg2E/rhPVpaGj1WU
-ZEV9Wg831pBF1CLZD/hKCamUojqxfKaXcUYez8JhuG9qnITnshM99sARjGaxNig2zbr4plbRRK1q
-dt1nndwm7XSH8LNTPk7WPvG1tRyb57zRxs3Ux+y3VcPy2/Sk52tHPcopaC5bt4o2iAvpAbiAz/W7
-eaz9RF1oemN/c5xIbcum8kKfl93lGleGSauStw5Qwb2fB/Mm48qxxQj64STVSfp2vNOd1gV77I4d
-b4swQ8AD054HkGznANFBK+RhJPB2k6WxF9LGCQNtNP2dmKbpRIP4dax55VJab+wKgzujTQPL1x4U
-65oc4qL4BFrMm8gwRw73iqM8HsIgu1a2MlGW6Csi+4ik4BEuzedUrNzOvh21ylmz4WEaXfRphwv2
-XaaEsVFutZ0oXlhZpho2SMrkgZrKWqM8bjK79I6J35x6koObVvnTWs3zo+56JAFrroHUVjfAdVV1
-YHnsV3ojY27DmXMnhrbYTrXfMVtAEDUIZm7mfLibW3ynNs5jNMmiOjqROPT2aFNVIWcuQtRfQjqr
-n40ZXJtWg3aCsUsUkqnAvDZqzT50WqPWZhe9N1mnbyRTljtf0544z0OIcMctOL27Uk43yGowAlMt
-RziLoDQk5rPZdkAnC0ZA/tQhNlTPWuHuWH2f7Yg058ysYhXEDLXmvjki5IATc0h4JIreiTEookPt
-VnSFoaMe8iyiarCVTfMQe/a89TsU76B9tniNh0Szm71bOuptVs1NhyV61ShnePBQLS+Nof1a5tNj
-NjpPMlA/8nnOQq3pd1IEJ3fZsm+dUet+xLanmsPYwxZacRNtq1AJR44HNfVjuenA4HgXWTmNXye7
-8VFhg0icbHqUqo2XcZ+47smSXHd+kRUoenbuP7WadI0sdCdUe2ZojS3XYxFoRJ3gCeGgNWBJUP0Q
-zCFu14UjUUeT3CQRuwnaNhrtY5VbVJYikdUen4WRwEScWL+2szPkct2nRo4XOYYqdJVHQXldCRnL
-k9UggTkbvTalb+Jv9fN6a6UpXu1yqEgBg7Uy0o9G2BE5ao5E8SavSvnk2LF7O3b0fq+Tme7DUPc0
-TUNay5jEmMQ2X8vB6+Nj4PvpKW5tz9upNp6PEQ1M2rq0vEVBn9Oy24JJrnnc6qbkcWcuWhP0HVqg
-Mha52EM+2A4DU3OMHkiTBtHanWpi+XZQ6IRuqYQLW0tWcejJGtmLQE1lbXPkV8AXuek5jKcGUxLq
-9Md5kXtV2qNunQ3OdRdhdnamBF3HN7ug3WuQTZy1V4J/25qQlevtHDHlBldqt90GdgYuam7rSbL1
-EezSdYsmF4St1xJsgJUSPev9pKCWnF3bJImcR3QbHM4qmwj34DyfpnVctHXNzX+xgRvePCKnySY5
-iCRBwZ3cVD0D9WRgkp0d5l3jJ7e9B6BrFRglY6W4m8v2UHh5sBC6F7N6qTzANipu5/aK61KqnZqg
-SqlR1Lp4ugnOJnhtjCoCtKVj7klA8wEL0+nzQx5VgUYTYqoHuwIowbgy7XF4MxW2e6Hs6I7xCW+I
-CFIsuWkSAGd0p8W/DxLAcr4hzNo3zIDpcrC16c0eBifauKnVW+u8mFGQKvbWIBQS9W9HkrinhM4j
-Ykzmw5bOPvbZNG4js/PyjRyCbgqt0cFg71tdSnQ8dsb7zh3b64a9fkvIqd8Xznyha0l2kbeN3EAV
-rG6duD6lmT6SkPCHdTJ4I5mLWFzHLtMGGejDtSe9CDxB6TKvI3Ic9snwZsTZvEvc9DSSDN5NAegh
-lSr9khpw6KXleNBdHrYqKlr06BaSyhiv9dqp1rWS6opL2bSajc5ZuV6XboPOIIHtmYzsg2gnG/oX
-rNxIN/nYQWUU5X0R97exxSlfsn+Gc5WCTwJw0VxlUx7nj41e5NplpOx9abJED7Klb8CGr/eV+Vox
-7lC+b6AkyCNTDmLswewcRKydnNqdL3Kt2DVqpHon2cRRdcXcQL/qCnS8PnqzoEowIhY/GjkyMyeG
-vk004yYNGN3qGZWUSvkMgArXWndtxJogbqLlG0rCYTWj1K9SbdRWE6vVqs+FeRIk1cIpibaRjl8i
-l9aHHJwXJp/6EV06YXd0r6LKG/eiku4V6Lx+DWpRW2XC3JuT2GhGuXdnw9o3Q6u+uzO8JifN1zIv
-hn2SilYwU9AEdga25kx6z4wZHhpDbw8TX4i1rY3lylRpsGqt5l0x7GnXztjfDYAFkEQ4IU2blsui
-yU5VMTWWsonWdt+xYniBdZENU7XrCNPeO42fJvmqmjXvQ1NGEx+TzKajgHFm4TzXpR4kYVLa5rxz
-bfATpz422gtT42y29YJZB8kRDX28acrcdFB8ZCzW80RP921QTC5x/6hR+ip2qmGBVem7NBDzRizp
-lAt71uH6eO2c3Wa6aO8zL6JNuE8VwN7SNsR3kiO93BZN5Tg3bUJF5LpLpzxY0/oqq4tyGqa9gL5F
-vWzu+ZW1T5PZMI62HTN4GnKzsMM0DeqPsiyTgXEpc4P90Oot72lvOu2hU3Uy7WTHH3QAnXhOm1bI
-B6+VlsAIChKYJ7CpssZmhTbrMjokieZ46zmN7Ow45XJigoBu2hwrQjAp441lgOpXtpVcUB2cx6vM
-LYyYIwiZs+fZM3iuLMplUhWasXLVVaGpEnaRlVbFjTvpQ3ejq2407JXStDna+MPQ3XV+nWsr2k+q
-20Bv5nkzEJusbyfOPK+tnRD0EmCl5pA+l75YVcTnaERgxuzdazEC8A72R+qjITGeDpukI+ATuaPg
-dMiJSu75WyiGdMngJwdXTx3oCxwNqErzhjTWN7kyymPGuItTA5mZlRYHbfJYllOO2MaAqkC9dyrt
-zpybV6fMvb2v+/sUjCEaUlBvjWLezcbU7LVuOdMu9CUvyFNeb8ROlHYPKcHAVW0a35hLv+dp2wG+
-tVJmjw1yY5gj1993dsRfk1n3JvPF49C6R6YZG85thExaaictQtmDPstdqeTe8OgSddogfsxKvsFG
-fWW4UBRFiUHCUSVgYljwK5c2PZfnZOtqdnCwF2cAObNjV4sHGgTKVT/w/amYFHWRtjZEd62gYN3y
-Bj8nWZasRqu41v382NYMozym5mx59RHNLNtHnXPgSHS9DCBfWcbGk9NSfJMm951WbTvL3jhFQfW3
-ql6MzIAOoUS0FW4QjnX7VNTyRgXdPjGr98IX5dqp0nszsW4TpTEkjurxaxpXrz5PKPXU6RHPUL1n
-xn508mRtjRJycCZJ3eCJWmn5/G4M0VVRO/etHRkrmiuuqLwawswL6svUp6RLWMuJyA2ebZAU2CrE
-j7mPW2YuBncV4jujN5w8dpfeCHZoTVeu0m6LMnuaPXWyJnHjpFZ6dKPim+zabFuqWFulkZXsrITp
-7VCLl3T26hATir6KpoIxdSHle981953u3RnUhZC76q8SO9hzl9qquLvoRsAk+JKYlzfe5VwpDqNd
-vPKmFtnEuPWkxTVikDdZ4Nwy1tiCS37qRYLbxlQBj+jchFYne8BD7Qtb9WLAyqC5GcD+0a846r6I
-uN3WU80mLoQKa3pEpmHYWL08mlU77DJNFbsskB+R6TQ7EsBvDSYtK3EwIATHOZ6efK5GG2mZJXqo
-8zEGHMqXWbHVDKFVzu99EcRtCP9/Z6fFS8ZliL1F9v6F3brPOvy077qr9ZeRnT5S89jeI56GvW4T
-+BwPLANcW8dxE9fRsSmnx7zUL6p5nlY4om4G19s5lXupuLtxvtxknt4/TV13OcvxJudidao9795e
-7DNcf3WWelB/WTP6h7TLwGJiUPwKSWk9OTBB7LqyXh17eErh7qxVbzJstVKuZXHRhE4Z3SS1kKEb
-zNo6ULl5EZl4QCZl8PFMtZFvU9ucbigDuMkjUC1EvYcLDBLf8HTFK9CGwyWbjVwts8DNjBp136An
-HfgzzJhgIc6KCUDvpkyz70z2fAZEvaC3O6pBygTddu6cpt3ZnSXN3dDjIlmx23blM6AWpu0qV4xU
-7aGPriEyKDwyessp6ppbHDYCIEJpd6CZmZ+yo0Tfc0zPlrybkdS7PO1VtuHaYwOOEWbGAJphLgNS
-PICFtRW+olpZIx6a8ys1rreagwk3gJU7/L++3y1D11LDMNFlzFmHQGkYbxaPhIkcll0y3ANWXIHE
-e+hHTBfkPIfhsi/pFlojcqUXGeypgKtQByeH4Lry57DDO8eBrZmCY05LNjziJMaWgQAjWROmbDP2
-zsxpthH8VtrgIoNpw7DVnQT7kwUTsbl0UqWSvck95ipxEi48wVByJNfSkiMtUrn4iCLZHzsuVjHm
-Izc/SNnGt7mBW+5Ck8r6YcVW/YA3NPW3ZHU7DrUj9FRFmVQoR/3NKeaX2LYyyDetzxsnguQozMHv
-t+NsutANa3Vs/eiGYq6nNh0vAFGflDbJct20pn5VemNwUZXMB7c1E5RyZ0L92rpddWosAFtewMUH
-gyk5w55eKVyomww9RjSpGaICb4u+W9Vz0zE3No7VON/YQ8GbABfSStxLU4l1V7Njlla3o7n9yeIW
-eJF48wlLBNCoQYRNAVlo0so3NOxpr3IMD50POqVW5UkIAo+2Uw+r0TCf2kJNm3J2P9iHTqM9Mhu1
-7kffTaIDJdsMlRwr0t70oAruo0k3o82s0jbeFqq7Q9mKLum5N1gttHx4iMWgrA32pOIOWxDE0CxD
-N93gLa1BQLrCbS890Ka72cYGGorMxgZkiaHJL8A/XukJTpIsSbh/9CZtzrXIzQ+ltycTMSgyxbrV
-VM2RbRBXbdBvU12+Z+akLgeBwwD8wisz+njXaNCVaNFKWBnNLZvRtxJ5gKNHUOP/I22OgmvecX3k
-4k/9FVHbILCuCIO/ICZ9Z/CL/TfI9TfbEcdU78XtONJw3rBg7tie5+o+y2uOfP5Qw4QTBGkxG5bL
-0asnCHzBlTxoVnkj+Vd04QnsCe6QvXH74d3pdNZMO3U5isU6Dt2Njo+FlZLQK52MRbF4mMqyE2uh
-CX/DOZTH3yavbIeZUSe37N1wJxvaVrfDbLvbOcX2BDwsTck9R9b0XJUWkM6mVc0HarnLnj4oH79I
-Xg480DFOh+aqqYtS3TUdtt2V12ipAn8u+mYT4InC+6Xo0/xWQ6R8mbD+UKVg99qG1teBcfNUcm6F
-ob4cM62EZWf080bfEFxnp1CWNrxL5sbasWonSuGYMKek1zNuq3odr4xeF/eYDtsLY3DzG1tZ3o+0
-1iGfxsLbl0iKnNVbZD0p9W/CQo9j6MZwviw6+ej5CVBasHNyUgBjY10dvK77XgqGQkDKhm3UjZ5x
-lJVZh+YgNw0M2uCYjH4/710zbqzbbHLHkqffZ1NAHMzbkMtpkB2HAAPH2ihGFV8o15dy13Jg/ahL
-P6W8WfenH7UbZ8GG2SWQrzbPh2CHVbmLToMrqmPG6EYe2sruU/xosLEPOeWquKQ7bOQX1I5yZclr
-FGQmmWwaq1HoaYYSIxHb0tLy46MsGI1tmMyw8Maqja6XdtUpFLqwQ93xx5eawc1jMtV6qKKuCNus
-NEJsq+OpsPTxKeVwIWarOehpibKExvPdjky+k3rsZG+D5xY7ylUKHFWDaz/2MANMwuKOtqod7gyQ
-Q4J7K0/mPU9CEKBG8dprZm/9EOpV4o2XrdASZqGZFcXllZfL0bhXmYcjkzWmqq/zAbve3job0vqR
-y8shNyOVvc0NZh6ugxgbuLjW802BeXN8GzMRR9yS48l5cHodr2bT6Bi9mrOBjoInrCDNQg1GufPs
-R4xcVXXHIVhWt5ZPtP4xmyyC/G0EyZ4OqLPfj7l3Nodt7QVi086ir9amXwUOPstMlPOl70a8B0PV
-cV6gTK9K9pUQ7bQqGy3PHvhVTIw1Abf3raEDJ9x0gR0nt4USjc2mO+avkTVW2iZudM344Rh1+Z7y
-2fzgum0AW5Nc1oGdibWyCtzVZWLjaOniDKuX5nZQx+JWx5M4nD2ZTmLF+nVUVO27jf1n2Gh8YxAj
-VVtepJhp/W1dp+7ARzewn7WxCOrNmOeSSxwM/RJYIHbSiB3IuOGo11hh11vNZawFvbflMam1dYf5
-FucNJmP0RccO+G+7mkPAsrO7iRZzK7cfvFYDNh8cL43B11ObXHPGNVbHH1iAo2DlaaUVHFnYtDxE
-mptZIdqIRU0FFfRaLSswmVGxylImI1eNJ7ALyaFjtkkHUuEt9/cu5cvc+lnmbmgL1/s1UiEcxYiu
-t3zn8WSdRrco4uuRtg+eIQxmLzyZGtyFsndfzC7xXokW2HesEZwCPamx1tcex/82gdPAQSoYOG4y
-20jf+yZONl7bdKdZ1PNV3E/WXeGk01Yy4dwOGNlPfm8d6rY1nyaYeSVn5j21z+MmQvd8BIzo7jlx
-cEyaUxmdoIfhslR+h5yJ87WY6+oKJFG+9wEDJIbstrpe01fk+EALWXJP8BnHVSRqeqFMqBWKi+6p
-iVL76NuaEUrHOmj+/L10BzovJnPlcZuex1IPJzOQ64mpJbDQKBw6Vby6RsXIjjV8P+K4XM2yvVN+
-s69q/85G4vvG1PMh8IojdgC5KjiTrDs66O+r1r+MA4ldSYtDJog7L8iGVZN6mxgX+5bsafzU+v5H
-X0UBnvveOOKB1ep1lmUTUQbeC/xyLuTrhhkOwo7j/n+Wz+9A8WaAheXPRo0LweftP0ImkHyl334e
-Nv76o//IVflfLFQ/tCgqEQyPYfO/ho3WFy6BHrz4pbVzGRv+a9hoOl8Cat1dbG0OBRWEnn4aNgZf
-LDRuKD8M+Th/OOZfGTb+3nGyvDIceR9nNXOATyNqm8O9Ul2H+dC2jTCr7ejBHVprP1ui//bTO/QH
-NrTfj9x5qcD0sIHwPjCi+K0NpGV0t0g95drgFw57o3dC9uyP/5MXofAdzoOJUP/J6qYbLBSewEyZ
-IOhtkkrHJD8E879p6aVh4neeFni3Lqh/x9VZ9JxPr6NxpASer3MMXgC7kzeNag3+ZzqJOZbelZ3Y
-0Hih5DNttaQFpXc+E3u1dlzovW0A/lQ1IDk/QATqkRUqraHpln0vRZ01l0kKDrwoK5Mbk1M70goP
-/s6LbT/dplM0coOCNMU9T9eccW/bo+atbRXVxcpy+3haS5SG72YcW69VOvQfRWzF8zpge9PD2o0y
-K2ScBdiFFZr5sTnOMieo03DSaU1b+9FQ8X0lUMDpFQSj5IWNmXXfbdch8jOAKMrCjg6r+9H1WnSN
-wTEREEUE6i5nMS8jIoPAYqIG/5pXGkMoqi4bOL53FD1iu42f7c4cOq7YAxqvmcPOY1ZamSmCjesW
-ITdOLE8gs9ofdc6MJoxALyOx13315JiZM5Arc81vrW7bhCFkHlDhYmZv/PloBb3RMZVJIeYu8HQv
-bdaOYybmBQ7+6qR7GTc9T3rOG+5fpqmZaVQz/HifMhhMKALJP1f9wD+v5qsq7n0vdN28uvSnfGSE
-S8WVvbK9mQt86jcdIiHD5vxyUjXqsushEfP+W3pwa9Q6PVhJ5Tpfk3LUqPIcx+a2as1U38PG533W
-4dpbodPP0xU7UPPExITwHXe77GEsB/FeJSImQFey1W8yxf66yvNCGmGnHBhOhlvRJtxaBRbw3Bht
-3gLPzr5HRhw9RrkYHjhLggAeyz7FPOtJOXH68Xx6iM0ubu7GWoivJoyhG4fzAIOG1C2ektyvv5q+
-qvTQhFN8jWNqAickDfcpp435as68lhswVulNa1XdtIlir7uOnCmY9jJp/ReLdNh706Q2yCEqX8H1
-4Jm9dDLbuDKEyyfRyVw9BHGV3/cq8A6iKlvK0aXTvARxQQ1C4k2MIAz85HuNjCIGsTFpvjrMMwiW
-VRNT4KC1mBZjzA7eevI6E19X5my7Ioo4QEyejbJG3ix9E7HV4LVuegdqf1kIgxQMe+Va1ycEM4dA
-Qb/KnDnGIqF1NPnhai9XhgMsikRUN97SnYIz0DALwQ17NvEtzLQnQIAuhvJNmaO87YXnfuSyjfag
-cqt+xcFBexmT9KswkArxOuj2c+R1lFJ1ucsdNKIgAFM4PGAmVt2gbosaYzqBKXvO4PZSLbOZ8IwR
-XsuMFgS5FhsX7jjq1/D+GUxl5sz0g7icMEKjLJpX5WscNKjUmL652qggoFa6xMSu+TROiFyLDyqp
-o3HT2TqDIS3TZLQZwPJGq7xegqVNqWFSt0avNkO39fM34qhE4NDFcD4MnMTHldNP2mGmSVuscqMq
-b1splk9deCbSV0slUjgMVZEezTqoKB3o9OIx0fzJ3ZYM6wyuwRnTUL0fZ5BXQVdxRdMJcRDqsuph
-XXcFQ35PZW2340qd3xMCtNYFS5AfxhGz2ZUya8GZ2J8o3Rm9JB5CmUrsuVLD7g55mzHbGuRa8syo
-yBjXfo6Qu4v9UaLWzRh/diKrIpYnewLn5SSTeNWT5fHPe5KHax5F/zEuulbfpA1G7tU0USizEXmm
-aXyrUB1WNKnQMImHxfvAMJGUl07VxfdlEvUvshPetVcqy92AhxIU3QdVAtfRlOO6hstFRkUVGSaT
-eEizkACC+WKVPqd4I5p1bU3PejCFObUdaZhj/oZCrVnVreG3/l0SafxNNQTSdSREbEId7xKk8M58
-AvLs7agm0qr1MDfWm5MuMQIbVfHQgKrvN4Yz8hyYUac/GPS2HH2tJ6QYyTz5UHkav5r9yMfd1SNj
-BZdgIiupVZLeIOmTxSuuQAxqVRaYz0VhJteoEQs9LDFM7DXp2Ie4HqEqBwg14w7Z0Pvhn7nL1QB3
-HYdH42nr4sxmbgsrucGODbGZ+LO8W96Rnlp5J7r0ehMU+FQ0nNjPvOfizH6OYDyf+J+BIrUDHHrE
-G/A0pFU3bgrDgh49e33wgnjmf50XuDQiPJzp5exSrVGRRm+VZhMs6pSLxnvLRRFC9ZlWnccoIzg9
-eHRWiVcU34Bow7bGbGEeO7Oc2f3O9Gu37xQR66aRZBoWQLajpHHirgo1u1gA2v4Zpa0QjpYxLtA2
-b4Ftw8CbSL/4C4O7J1f/jbhDV29Kkp5vzNfgdXuIJM/1ZGTaqg/i8qU5s70pA4gerDPwW6YaTquF
-Ap7MVLZyDdagg+dnUrjBU3VLCrZ6rwJZvA8iIoU3nfniNtK5XOVab56GpLMgkOvAyGfsPQ9lNOBP
-mBZYedXX3rWhFoJ5anb21rbm9ADPMb/TkgVzrp+R572hNVu63IlbQMADij6fAekxTTPuyl246bGd
-UbRScqxjIJfmD1q2INaxyfTPw5jGbzZtqTm7uD5/XzpusR6VBtFxobcoI8MZ3g7knuUZjbC8b854
-dwL80+VUl/N1vdDf2aswnhF7lgdZVoW3ci19GPhcF2w8JV/mi5c6wOTzhSs/LoR5+wybTwvfOWL0
-ca7IRSFQNGcwPVg+Dc78L8B6H3Z9tFDsCYoBtC/PcPsyXTj3uoJ4f4bfa4hEdy5zwG/KXeD4hbk4
-7nyrlrxNCz9fnFH60RmrH58R++YZt5+OHVEiW0Dh12KXfM5C5h8XRn8X283zbOU9GisE/4Qt5HJA
-87x2zoB/i+3pfjxj/8dzBUC8tAHAHKQYYNToCBjOdQHV0hwglg6BIkmtZwCjFAvAPTfvS2OpG6j7
-pXpgSJvhKVv6CJrMQYWczzUFnu5QWZCf6wsY7vK1yM+tBueCA0l67LI51x7kfWrlcPstyPDAqOVq
-NPW432i2W7sMiuhOiJYWhUlAzlxNS7dCbrmMP4e+K1ZBGoEgmHuNIgb3XMrgOLnK2ZLoajAZ3ZJC
-1Ob6PZiWMod06XVg266+dgaGrm2u0/uAFdegOceOnas+a+prrrDZvSNNjMHd0hsxnyskai8R98HS
-K1HHnvPEUcS/L7E6cbs+V1DkQet+G8/FFNnSUWGRVo/W89JcwQbr+yAKEgot8nLCsMw/SJ+rYfA1
-IonV8INWz/EGjgOVGMm5HYOwB8fdc2nGcC7Q+PObyu9uXuaiwbFcY/RcbNXLDeMnj+dIPqOiV0ms
-nVyrbwuNmTan1mGXTIb7/OcvdW6D/MlPai++d3CdixhP1QpW5N++VtUQQK2KEpVAONYDowvojRLO
-xNfa14hDKI9g68odprlYFTb5xm0gnelHOSFWbsAkyifDw3GA/IzL+8Jq4gyRPE9wgcCNNC7GcRAP
-0ux8fc3nan7vmn52Gd9LpNTU8E6j6rMfhqer28C2p6+OM0wZblJHUMYu8uBtiVB9NdLBrXGIkO1v
-SzN5cBt7fq+GorwfsEjOq2zgfrQ6vy9/yTn9/3rnHRZig4/7f42HWSp+qPc5vlXf0+a3iJhffvQf
-Uob+BcgLpmSyIpbO9Zr7/T+oxPYX3yfeoRN9/BX18k/ftKl/Wb52gBeJHNm4mXkO/omIsb5YXKAt
-H00gwIz61xAxn/QFTNOex3MU8E3SF4Xk05d8YmaeeTXD8CBXzqZOAEb4kTvvfnpz/kDF+PTYosqY
-v2k5/vQqf2fL8Sdt5m9qOf70Kv8zLcefFr//SsvxAkP6OX60fGK/aTn+9In9ScuxAzjIv4y83vth
-5FK9UOpkYX1y1HD1Z6XHAvUmR273hVqfq48nlRjVpkPaZnD6v12A/Cnxw+9hLakEg+suuS3+89tF
-3P5nAfJAxwBkAcwn7ktiCat9bNCG7wwfePTim67vmGsJ+9IorSzd/XEpcj1VxdXcRmO6/u9oRv70
-+f5PNiOj4/68r/6Nzciffsm/sRmZ3NJvf6vY+zuakd1lif3pTEIf4n9/M/I5FfXTYWX5nv9SYYq7
-k33jcyL2X9XIrS85w5ezHl3QaIilZvZoLI7ANJVR7G46Y7DAMWnV0T4XJw/2aH21Eh9aAmWj+9qv
-ygtUNBgBbdQ4l61R+fKXAwSBqT/uW/285Zz/qgR3UeF9ns2lD/bn9+tvalT+pDXHw9/SqPzpd/kv
-Nypb1vIk/vaDJh5JINNlNr2cLD49P/oYeDm3cT3E+IXaZwU5l0VuHOoJJJZINxnXG5dUDcoCLvK2
-fkgwQeOIciyWP6gw/rOVJIR9MgIL767KkmA9dLX+OmtAVqDKcC4Nc5APT03ra3ftGDTPJrw1foBa
-lT2IMfv7BKYcfn9eBeU2QkNRq2AyAgyRJERJx5AGEeso0IubvBvpyKorJV81MVGGNfW9esgkvqhQ
-l0J/rnskTKxffXqv6YV/h7nbr0MvabsD93GGqZ2IpjuvCHy5xvPhPoxKr9uQKxnRpqTIEJzKrrV3
-SBK2tVJU3MtdXw4DGQw/CjBZGlX/alY6zDbkk+oCOha7TZp7zgQuha4xuPmgKkLL8eVL0yr1RF4A
-5o2dIZ2uldva2Q69br6ilEahjVv8azXOfVrDtHIg3RGN8UUHdwRVHOJE9xxMk15vUMmzV7cSPdPP
-2hmfggKL1rpKffuumDzjBxWEESbWstMVRqlgfsJ7Ry9EPxdOvJ7camqO9DPp94aWGnIza4iSoYS1
-YKJEY4vD/VP3WGbS0r/NiR7MvINx9wGZYu65Q5eGt+7m3jhhIgCcECSyfa2Rs1uwPrhxLxoXGX3b
-WF0iLuN4YsZfja2ewVmRQO9D2y6L9FFENYSHxLXoQYCDwhAiJ3BDEDiGaVVZDgJsFhmWoAmxMo5t
-NeuMBKQ34gMpBsrijGa6CuxBt7dR60VxmBIKxyZD0Nze9I01fUs8b9LRhiUAogy/WrZW+TCJVf+f
-7J1Hc+RImkR/EdqgxXETSEkymRRVLNYFxhINLSKAAAL49fvAndntmbUds7nvcaaLGgjhn/tzDT0q
-nru8fWI6GMirtVDwjeMNF5OTTD7Nvh8utX3traw7tLRdwZTei73aFTNNiQhYZCJEat/7Uuj7VE0G
-GuhMncYOKv8qQOXnWb0vPGOYkqXAqRQHPvWKcboWLbr3xq33zHXId6TRwNkXauxA26/lNnFHI/jh
-fcLvtTlhXx4+ofjpJyB/JkKDT3HD5k+CQTnAfPlj/MTqy0/E/kwk46v6BO+rjcE/aI8kEi2ZLwQ0
-rBcadvsiyZmb/co/Ef6phOS1t608vIafkH/zE/ivP+H/mbUVATirMu+5L9tdrKPMvJpAQfBeDtD/
-D4aJiwi9TfJsWjjlIzgyvBjIGoIMVbt40a1vS2dE980domXZEO7XUa4MjogpDdyxv9FKsfyym7Lh
-yZHL8tEIt7R2YVWRbppaGdWEScKOzsLCehM2pveE0W3R7KeCpHOc2U1TJlp78qJNLDLXdhmcSzeR
-DNrpBRvqLl8IOicqy6snt4yW6sCxrHwaOpt8SYyHV9xvf7HusOBHN66LV1fFJQxmdFgjctCFs3lZ
-mp3nVCPVSVuMq+9A6GHVU9gdkfaZVeW1SedJ6Znph7E4DmWMoOwA5oU+ku9nLixkRhHFaOzdo+ad
-gDfmkHDqeoB+14zzXh1HECzgDfku4JIB/t/RpY/9py5zvIORdslMKV79G22Im8AZpcEjHSXFlk0L
-GvNEJiCYqU1JI30ThSy++mWYjwcdeGt+aaasP1Fdjrey0bOlkjKX+rHE56N2/jg660EvWacJqevg
-JZRlKe7GTFYweGxMsp/5NqQaBlXDPlqVf+cK5cKXbM3ptVHBsMRzuNEJMclCKnQ3aCGeP/iF84Yy
-xI0E1ZDSGQiHTTGnX1mi4R4Ouq8fFAHDD9sZhy5GE1cvi7v0BBI3cKKlBL8lQmLwFN0NrZjzc/80
-P3mLTj50PwVypEj6CeNF+clmpMq2/u4uuiGjl1fziLlzIzkym4LqGCkH5GL0SXu06LyXB+TpNNiV
-AKauKlAtudQeTCSFLNbPwlJpf8CVCQVzkZJhjIrMAOYgrSZQ/yojvGV2Z4THeYNRiona6NhcJ69M
-YJx54Y5pPugqbAzRbww+EC359P612zCXzIchXkaf9Mt/ffn93+cdUH2mE1kbNQJiyz+dD+3FJLVo
-M5ABKpddys5Yz6kedfyvv8p2IfvHc8HGaKGj0Wai4HGX/8dTVcciyewxxO5tFFDszAEfr23TqkLa
-A1SlN0O/RFM6p8aw/teX/n9F6C/AYH+7Of7fetB//JS//2po+fznf9OAfP8Pn0WYP41lueBjtgPv
-3zSgwPkDDAPMMSoFLMJXW2nV37PzwR8WQSqO8uA/cLQQLv0fDciy/rDcwIEO8l8mmH8vO0+K/x8f
-Ho43Ng9NtF2SwdzYm+Hmr0fyTAdAX/FUJEM5ifrDXKw6maUght3bDjOMylNkHSsVlEnfu328+W0f
-oiGvWM+j8VaRm/6WiiZ47Dduad84xguxVMa4XT3XHEkyIqKrVgN55WrWh6yv05OQxDVaxxifvEij
-l8Omco9WQFKumJjDjsQO6XwVZCyW/lvUBVmb1I4wfVB8DYjSGvISc1Pvt6ar9DpCq8KRq638Eoix
-wlydprc6YN+O537wH1wL70ifQ1GKO2/lkOrTorKhYmKJA3Zv14o02Lj2oMz85oKjeRrvzWqy7+dS
-yae5ILHS1iXBH8vx//SYXRcxrp+Ipi2vOjICYjmzhV3flwu579oQVG5Z8xfEZWwartOkb0SK03up
-/OwSEMO5bzP5WoxlsTcn4VwqkJXQo4jdrmtxW/VSXQiY5c+iApacD4RCkY+v/VTYDy5BhrdUrO1J
-h0VwXoxum5uYTvZ1oO66iBew0kngj9A0dWW+QuEBjltF4de5nHr8NOSkXaBcJ9uGJKk7I+PYrAir
-BvRQsT5qjrat6jJ4tRorfqHy5aH3W7yRoItjsUzrWbVZtG+8qjwz5Xym5vPile3bGHEyIChQhor2
-oWDGbF4xA7La0YrxaY9JsXhh7NoW9WWFmcZFVnctqLpeH/hT2jtaputLBnGGqi0ToiUOsl1kF+Jg
-i5VECzScZBH+cBhHA3dKODoHmAMYwYPOPgMiaX/Q0aT2K6EnqA4bnpUkAw4Dbrd17AsnfWx799lq
-C4ZlbofHw4tlhgEA35F4XqSZHdaKND7Ru+A0B+MWwOXnrfy6vAZFOOGIdfwnvkL3zEwZO/NgZQcH
-MOS+GcH1llNFjiecuoTIxjw+Ndqbw4MdMswjosF2XYKUnTxCS8TpL+AXx/J7Q1Zt4Cw8z1HhXTPK
-vBnQZ+Qdm1PDyIa9280ZirmHSmRFuLlrLDCnibuKvLMeesswiI1rGy6zT5N3W7OvPi+gmdbizufe
-VVn0JhftmfkAx7Kh6iBkCUqz+mX6TdiFT5SRsCBoXtxly9T98vNVfEkbXydmtSxnSa3ct6aENbub
-0ZBvk7fRMiW/rJyrR8OAOx/26IDdcz2U/YFTEBqgwg16suTs36saRNrOgYLwvoa9ustqMDW+dppb
-DQ/janpW9V6nQXRsCaj8aOkeO8o+DR5W/B1m7NlpdczJqD2vOuM8jVM8h/QgYOlNs9vc+avcctB5
-yCI1M9SkalL55KdSpwO/yobOnDh/0VxrCTnKiB+/Xw+c+i0SvhGR+7oN2/1aut6lnBb/BMh3vM0Y
-c7cYxKsTSnFPr1rNlTEPCT6mUol3j2TyM02CY4xYXkEGHe1fXlAsXzHfAB0w8kHcu471tLZOvm8U
-L4wflPbLQnrhORjW4D6ARbunXM+5mY5y3oJupUEPZKRzmu3Wmy+WlsTdKmxv+a4dcvfPnOveq+wZ
-yM12veJ1K9viTRvGcMsxhuidO1rBi+kWeQLlE1oJfW3eVwxQWN0FhorAzonblLpMqAYGHZYbZXTk
-3MstjSw0nA7PI12TwfaGQIlz4poHec6KWVdPemSEa65buK7jtpeRoDHAwALqrBJARUyeJwhEiSuw
-YxQ21nY8AnPxPQP1RZQLiuwu67Bs5XAo46Gtff53ObqveOKjj6YtpvRge874YKaL91IuujhZq2ne
-olrUL2seOZdiKtyPWUbWU4OE9KCHGipJvgQrgPTRSXTQBn8Kk2+HvrJ+ukFdtvd+WVQPlTUY3wrD
-9sQRQ2BwnR1vYXivpzNrEeHPQS3qECywz7UliB6F2rsreFZ+dsQ5j3qJTJHwrfq7jRDM3cUdeuds
-Tr1K3HrDezjOtBvs4IeJ9+coMlMPOw2jin9CoBWjlg2JxOoBifpdnriB259Kw5vJ2PnjT39W2b3F
-bkmnnBNe27TFSGLBvb9aTbheJqyBT0RuGAZrA4oLLsYx7lIHnkU2Ns9GZA17sMGZwtRMym20K+M2
-EuSYcBk6/W8TTNJJD/lC0bpsHoTDLs2tNwsfqtZrH8iiEPCremw1URNi1q7Tcfwy1WuBySd0Q+pX
-h/otVeyO3oiov1NG4B2XsC2e4aaat8kP+qOyNhKK4csrS09/Z/Y1vvlqqHekokpYD5Dg1+BnhJ/b
-PwMbDj/ygHtCm6cmMZGA32pT1Vg/mSu3W4jJ/VAdwa2mJqPHnSm7cqEyHjDGSaShT5N71La/GlXr
-ry4v9THP2dTiMgvSd3K36bFp1gfVAx7WDT3RsxU3KVaWzm4w/4dAWCG9PkaVFxFW1u9Dng6XynKd
-r0FEgH+nhtB6Y7aWxzO78DcTVsCPVrv2frUq9YVVT1yrIg3PfZitNxgi6ET50sdW0HwhVXwVGGaT
-QUfeXe+Z1UMj+/EwFM6pbo2XAtJ6Mvq6UFQOtpemnndp4VsPiiq/RNtqPLiEkPgW+H0mpZ8Od2bu
-Q1IOiEsEtAAmTaXNh2H2Cmrumy4R8MPOvMMkaR07P5Wm9C9kp2tEukK8haiEMc48d9/61nIvGWFc
-JpNbAOGh9KgHozwVjKwPqWV6L0XpR3u2qQi6hrPe5spaHvsyyt+aue+v0TS3L1a5tkcvqoejBVr3
-0LSUKkCKrg6KRsDLUnbTI8ZtUGbhtEOfVAfeM6niMkcOspzXwrHgr0Z7+MVbGjl/oET3Ejb5vqjW
-g5eKZJrDUwsmJjeRSeT33vltVaP/SEw24hptt4QB57qbj2vgq60wwEmfiKRkbxgsj0uwDMlsMSrH
-3v3eue18Jc/Occdapxw8C0xdczbu3dStrIeGB0+jGW4X8ab+HQUi+u2kCjSTO4o1aU0aIoJMmtcx
-Ii3IPN/D5RGM93Y/8F4qIV9JQbrJHKJO7Lo193E1pGn+MU39em484E+Z4E1M1NJjgkzNNyDSQBa6
-AvMXIt0BAj0VFKXOoYrUJK771bL2dqWNH2ZHbFw4WuyJ4sx7qylMbESYCKZB2zeI/iBJoABh7mqw
-IC7Vt8Fsxr2REZ7vgTNcOKDO32dlTgeSoXaML8nbZ4Vqf41mkJ6KZlyvmHD9uE+XLAHC5O8NAolJ
-3gKPAbvSc4wrhuhBVmt2GM2me8Lmzul1KissoVFxcY1sOOW5HT1H07IcJY/r2ddIRspVSZH5+uLL
-2okhxfrAD5V/9BfHuJguhd2twgw14VZKQBnYSdHAzvI6RAYxRdad6KxvGHRe6yB7MzIIKn20nTN7
-6m7hN945Ct3Q8pen1JlFLFhVdnozV6e5XBNhWMvzIDLkzBEka1EQR5qnjsmG0X9d5zZN6oy/aNsG
-/M1K6ezqYvrtUGS6H8gTJYU7YzMK7nr0tj200xnIZkgguRket4aUXVCk5c5b/SvvCobngUA22H2y
-kFk8eiv2S5ddTXrFDwpHWJLnwT6UPf8aHPvOCnvzfaya333RfAFm/7hYgkFKVuOFbRrcGV2gk96E
-BZRiHuP/mxKvxuXtV84lzRbuKmWn3s0h7X4rS2kUmcGwTpB+/biurSUOSrPcA9XY0F7u9xFa/t1Q
-Z83BMdrg4ADOPZZjWT/TMKA3VqREZB1fFaiJq9NocRCdewyMEB/a0ij+26ziwQ3ui5V0+zRa32wn
-Q8YKw5JFuf2yyuksaYUAX2EnC43ju7qm4ptugpzoHaj1SNGxYEV1HELO3sG4vhtxeD3Xvc4OwkOU
-M4wSFlTltZdlzKMzkBYefnaV4+hQ9zuibV7w24FwHkE8zti04mk0LB73AZ91UI0vxJbl2aghmefl
-DEQGbbbK1S1sgq/YfKsN61ntMz/dYb1LwAMtw7nn4zBz19OrWo8hamrSZ/V01wcl5HnHILDv30ry
-2nt3lfoEHygeVXH2XbxizcrnColVN38aIZq6ularFhd23enUSl2/kNXPz9tI5kwiIiPeponNGxYH
-O7gMoX3+VA3+X0r5i5RiEwFhEvt/iykPH9R9H2UHAuOvmsrfPu5vqopn/mGbW6IHJxhzfeZX/62q
-+NYfQG6YgTqe/ZkDQu74H1XFARFF2NT3IYShmP1FVAn/MBEskctRVsAHuta/kxECSfmPosrW8Y1G
-g4TDVwKZaf+TqOJoSoUg64bxOA1jfUoLiWK6KBvftV/aA+vuKIiAljoogHaAGz9jBeWJCkOBXz1c
-hXrKQ27MMc5PY1c7I60yHp0QIK58N8+SeoXDclyXNA0fbaARZIJtPcbRqMVjA/PBjK0KvhnhmepJ
-LW0B5ahXWH9z0NYon50t1+9NMQ7FIy708VeDMtwl4NCI8XJOFVeXiUW7I1Il31Or16/NOhHvNIMO
-WsfYAB9Hsze7a6nZqo6V54bhY65SG0xcwEhqdsz22ZKV1RytIm1nuQu4/hI2sSQ0o3o30iZV3Edz
-2nJpGzLuZLvaKvKCEO9g092yRCA9jLK0WtLMpl/ezwFsjTjDRG8dG7TWglNsuISHmtKpnDgOwYVr
-3Ts6Qijop3HPZXaFQWJCnkuU4YvxAJlujeKhwJdfcZ2sHLGnvkqKoxWagGc60JZb67dkonDvjlIv
-dwZeYvenLMqO22xRCcWcJW2wqDvtYj/aG+cwbrem76TEcT/cuCQt67GfpWN+p9Sl9r6SrSzAZEQ5
-c1bshIN7g1M42replhG54LwmFkNGmCC5iPxhvATpVH6pgVZ8EMxp31LOJGRZUjtk2ALwCJUhc49V
-A14EXclx9ly9hpJ768y+p/vmxXFmHRNv3wdrxI9s5yHSRFumeR8zdfI+9GIU4parZr4FDfmNpqEh
-RqdOzw0wF0RNXQpFnNhwKJ6J+zFqikcxsqschqrlEu6EFHkRQgorOmeUTM09CYDCvzKJGSMOjlxz
-DiqUTZQEXb2q27rSy8X4iGO8Js8zQYbP1nGD8DTYTA/0dQHXM1T9IT1TvBeUo3c7sZjS20mnC409
-qQ8z7rn9cKuq06y79IBuWIpnICKisbvXVo29vhTVZMA5QLAYYl4W7X6gSEaHlPNJnvSdF1no/evC
-raAg6nFS4TT3JmLN3HCicNnsy4mRj++OuCulgyMppeloRdFcHkbtrFl14fPTuZO4lrW+UVgl2dPk
-1MURf+qjOy7fAo/RycpA65kYCbPUYUES5DE9dVm37It2YohmU5rVg5PRqYpVP5I/NTl4ULttBmuB
-fgiKDgUuLa/2qPOvhrHo93yZ6pMTaX0YlGofjFBxyyi67ieNOs/txDAb60a6j7oQwJ3XchvruGTt
-bTJk9JblMLqd0oGyWSBW3Tr8tO/8bNPJTju+IouEc3DSPikMuiucmsCt0aXVxQ6G+TYNvn7iDkvn
-eDbuhrnPn0JVLS+g8+TzxAm8wVQemUkYmluxVlqS4gOffh/ohrYejhfQHn0Nh2aFccZLshhvaxQw
-mCvdUNV7ciDpTWLHujdqGJ8wz4f3kJAe+EDGZpxHYewk6DZkZKbOvOfCjvvYtTQeMlZQjgFOHzQk
-5iJPXrNsRCvwOqTm3hHL7xaJjywyXIIqwdyc9oD3ug4mVcQTtIcLaC0cayDfJfQDoYpaleVTzF5w
-A7yRpTNulhzkJTAr8wypZcPIrrQT7Idutot9QMrqdWJQSQWQR+sDj6udS877s3PqR9w3+1k5fNdl
-YCyxwZkiveia1F2cQg0j8hMEIaSwRnD73JEzKjZ2hFWX901twSwTC26dikZe6tpYNsn1QX1Aey7k
-n9JhMHtWgxzEQUaTPLjR5FTPg2nBA0y3h5Pce2s8pB5L105GbjshtEsRPHWR83v1C9a8NkxM1FL6
-F0RzRXmMwvKUTz3LO2OjyJXVuXA60hiURJieAcWoin7pAHkz6Qfu2o9pZVfsMxHh7P1cVMv4VJKW
-GQ4dBv8ozkqIWcfJhD8Zc+L0zqvhuy35kNY4FkgvU9CdVwDgzX5ePSsOddFfufBjCOxwjC8Haafu
-d8d2aQrylhBUGtM0NhI9dWfDHeZTpoY0x+sgC5YjHcwoV3Bu+S23ocIPM8/i0WRC2oX0QdzV3lKH
-h8BEBj6EZUVTCnMAP9xb9tyTkzfL4SyB94UPawZBcTVmlvhZaRt/zAJ4pOLmGp5WrnxkfIi5lHs3
-LEPi5KhioYOcYrj8q7KXwbK3WuiNZVkxdpv5FZ8oRwPX/Q1/xetMIJAtr1q9n6Malzttw9A7yqa8
-pfSdvHdgZ1TMIsmDgWgomndkN4rOWM5NQKQ1B1tiJSMMBbF6BGR1WcK76RbDP5qsD+WBp8lt/Ti3
-0Uq3CQqwGaL55TbQRxG+1Iw4dhv+KZ9KQqbr/EHT4POU5c8W2JmLqQa0jy3szzY+Ob9q09zuEFG4
-WzwP7ZS8KegjmhobYseSG2vjb/WLEFe1UlV3AtGrfZbGkBcgCtUOdzrGJKILwjvn2g3UfvEz/8oZ
-PnfZahhLNIh9xjRQUCVqiL+jHH74szl6J8samx9dPVHA09bd62KFuFP8dCn9sx5atlzIn9ztIskF
-/aCZdAI7UjhedtJ12mc7U9ogV9SrfA+LyK9iDCXDl1UUVMu4BU05r/gT9Jeh8zV7+CgicaTObzk6
-nA7Q3XXg51fQpC333YWwxlrlfOpyqOvTMOMU2ZvN5k1puWL/rEGVfeldrP1xNlvm7zXv/GfbpaM1
-RmHP46KcbmlhJ70mwUipz7SnmSqJJlsgB3v5heW/3E/OzN3FdgWbYgGabGoPqbCiBFZU8M6c6hTM
-thTwwSJLI9FF9lM2boIGIZzqcVnzL8Aj63Zvrt5uASUM3QnAzy0oSts7qzWsT/4UqZjL8XWiomm3
-dDPOppFDQ1bnPcxNvH3llwp6yx1DMvD0IAjDr90EY3rPsyvA5UhdNXVczGtTPq3Kq0sCYenKXwik
-TOpv9IYGGonYT4Spho7DW5Nx1JvhsBhUJ1aldQZ/PNo8+6JJ/MbqQrARHCm/+104PSD7yfA7Saf8
-zcomFfKtmqXBLxCy4jHTPmHcwuJxNju7uMOsQI9bV9rUFbVp7kNbnjbiUGR8pWqn3wO/Wa2WTPVm
-hTP8JX00RgcKGEVD4dGRK+tt4LnyW5D2VGmVJCOKuCXxusIUsWASSbcJXUJ8s4tFLuU+Cy+MEeiP
-AW8yjXbFujlOPOKuu562O+e8ZM703HRN0R3yXPZm3AYczWKiWWlxzf2WrZb+UmLHVJIi5Q1R4ZxF
-UKwEfU1USarg5G8irJQHpuwfJRkoH1aiFOsFdlD+ZXKY3vXCWH9DHl2evQCbn56JXe4Wk+0hFsHY
-OvuRGPQ2ywvqO8Ku9q2vnehunBun2ntIP9ahLAZxgYNRmUeLWYL9WJXFjGaeOYYFpXDiLjutXQHv
-1Sf2C9gxz46BKKW60yIPOaCZthOnXvkiZo9XDv8HHjzMQF+Qs/mocky9+wCTxs7BUwN1ZRiac6/H
-qGd/ECxQGKWI40MSs78AIRJHH3UUPbRQ9aM3Gc5yZh7AeGLty4+Rk1dwlJ7be8cGhpw+2uNyWLMw
-VrP1u3fzhYo+qqSGcj5VoHJAywT6SgwvD/gZRB+d0G7V99wzzPWMwkBlVFb0B7cjPnywikWCJ6w4
-SZ5sPhIdP1P3XeRn91lqb5ON3Kvk2RNVl5EtL6J5F4ZBHya+552RZtrL0MgFiUq4XzuoZkuCFLzQ
-MArL1z9KNlpWQ9fhmLrYS8DrgyqXVBy7q2tPV0t3MryUAt5GCPpMA1k1qHI8NH5coXni1CU8G01J
-mAt648zGyGGHWZVv3XdBHe5Bjc3rSTRmn/MdjHgzOf/37bfFd72j3boDRsQcDCP5LqYsNY1XlBJO
-U3igTNR9hoHf7aAwps7eikTwojyRVhA7MZYxGfWhPDO+jUcnLcgq9uIOI5c+DcAPYElFw6+gdbKY
-tky+yW5UzvX/pQ5Z/Bz/KllYlMT8K6XjP5qPtaN/4X9/zN9VDv8PEjrmJh+gdpgcjv5b5cA7EtBI
-ZPkWEbXI+/xPf1M57D9sm3KoKCS1h+fI30Acf48PUeTAdXbr+MFKiOkk/HdEDhSTfxQ5HAYM5Jfg
-oGyaCcUL/xyEmYtI4DkQbCHN9DVXQ2Ws+7ZfXfudojS7OSltFpGVaBqwNMYRUfYp7EMA6d13s+XM
-tveFMBjISGM8MHLIRFJJ4q5/YsQYiw9LZN5FRP3kPOTtxn9CqRD9o5/Pg3UHP4YCZ4NYd3bW0vKK
-pF8nwHO17g1syOaclNPkP4/2FgV1+7k6IjmN5OW5bqc75YVLQN2BkPn3Foq58RzmXsR7kRlboyfj
-vEM1dEFwp5A5vhud6vgkec6w18KpkeG3SqqqtfpfgQl8rVrYUF4Lk9MbZEi7KBB2FhMcdqkgXRMj
-tG333nA3QCS1LswupwqHKLtTrl9XqFJAHSrCf8vR6EfLvbYYkC/lwiXyx0SvDLKLEuN5kt7YbFAt
-+v26VLKvlSk/MblVxJJv2erkgLRmtk1nWvM3qBwwJ7nOG86lJW3NNp+Vy8lpYYjQn03IkjsgYyc4
-k9zKC/il5Wl0zOY6zFh33EF/a3E0IRp1pngeVF6VdzrLeuNhRlybL4W95jnD+bx25gsXdxrPViTb
-/BkzUZT/RiDig41utPIdRYADJ9zl8x4E95aCAwuKvzgoe3Lqr0T6UZRPtV8EzXloUIt/WDPlEBzu
-6okKnSq2HR8CJgxOD1DGT9s3+nL9tUxigp3XwVCfDrAOFaPqooJy8hUwPaZAtzUamG+lGvIfri05
-+qtMxLMLJCLtKdqumY38KawxZ9rBbCDI4HWXPhoKJk97p+cGNjHPrOJ3VXvbjk9p7niPcdhtjovG
-S3WmajYVD1uHQnqKOMmDnY0q7kMYhoCcPMlxSKkQ8WyGqBZDomDlED0s5V2Hlz7H+qNaae3ELPXb
-oA0Bbbk0jXcxYBN9jHxsi++BFcLBk2We2fcUYDo6UZUBd2Qnh9kezgoNPv8Z5NK2VQwTGIEBh3hZ
-w62rfOdx7BYnmLDCG9XUbx6Ubunfzc7nSjMvFkg2HbGPcLIuvXgYBrxSnP3Hu8rvnVsLdu+XrYxG
-x6WsqlufYWjY2VENoWXDxMyGq/YBD/rO8AaZ4MXHKBt46gcCmPveVb3P4LF048adqwdWgGE3OYB2
-wIoljkbOxEjQnF1MUfughrKDl0Ptmx5tpuR7ONNO4sYytTjOdfwGaR2pD0xkOHVk0UUSrX5yOS/t
-l8rmZI4FQklx50W9gllQsaGlnF+M3v1TFEuZ1G7z1A3jlLilvBOrvT6Zee4dnD5Ud6E9RklZuOPR
-jsz+ofUHrLVTgyDrLMY1XbS9C7vqUTbyh6WGPua0VZzqedLHBiwTfwWzP81O+dTClDnDsrlOWymv
-GWI6we6enpAPV/pyzUcqBarElpl1ylNKG2CBC/9j6kGND4sHv1GE1iGTNlc/xsKIHlHjuPXWfBhc
-CFt86UP0O4650dM4VTffTN1ksWji25lYaQ4dIKE9ZqLsbLthfV4w1AIgGIoEMOOHkW51JIPL82tP
-sI9kVxxmlcPK3kQOvYk3kZycYyUFuSF3KYrn1cc5PkE82QWY7ne0jkmyRJXxYk2T9Y51vr5Sa8/t
-d81YU6IIqHoFsNlsJoak9RJiXDA47U9G88swBRpQpxnKN3BS373ed86aePveQdM9aB3ND5E965dJ
-Tv257eXwkAfhO+2+1sma9Hg3jbODOX0Dqqd2e8dYtThLpp874cn2CLunOXcBjAb2gB+OTZftkHvL
-3WLJNOblop+Bt+lgpFNxlIoZ3lpm4TXgsArJsyLg4NVedCrHID9JL82emtpdHp2sQIzOWRB3Na7v
-s7XCJMXGMn3DE2Dcd2ZwoCmZGaHUID0as/7SSQBdYrCcK0b1PvG4uySLwlrXgrt47BeyGxiVYRuY
-7ZA9YSbJv+XNVt8jVxBDrT55ixvErjJSzOYzx/gOvIVoW/Vo5k1KhTK6bIOHKxajRdeMDCSD9Qn6
-DZIlsZTOh77ElLg+AXSdYnscykfJVeqhZqF5RyHQl7QPpgu8CVQASnvY90ahPPOosBq9oKTQm724
-ZdwzSYx4NbNuZX8KMh9Eq2ng5nLXJ6RL+gSAE9+HdZU+YyZ9gysVXOllKc4hKRdNFKdwf9N0ke/H
-fJgP9IfpOF9VegjWfLxjU5gYYyyG9dIwSr0uuPYamNCW+pnWHkwsE7QV4B+Xyl7WmTEJvKY9TxYY
-TmiJAEMEJvo4Ejp88PocmmoRDMGfMjIhbQap7net6UhCJLAxuJzYLgxtiTzfDdLT92TwacnFk4o0
-lVej6T9ivZBvAyMkDuKizH71ZdWfas3tb0ejwnDMihrDvmOlLwiJ3DaHPgTy40UG8sBgKjaIQI9X
-w4+aB+A283lemddzanAfihmtymjqX53igHZCX4iiXUSd6N5aGAqPpbn+qKeAeE+v3j2aPgBnGuW4
-A/9QvpL8Qq5kQvNGdnHc7HthcA59PLdhvZQf/uDKi19SaOy2BCZQAqabKYYhrtsAh+Tchfz90F9i
-qtcZnzRtdmHkk14z1T5JYuYxDtDHju+5nW2KyDG8bm3ap2lpuOgagghA+nsVbpW0ok4PJtP4cspU
-7JhZ/0Xq5hYE+itonIg2qaa/ZA65sLBfuR4zgk48T7e/6VBqt+nNS1HjLrIMAHnRWEjgwcGvdXs3
-lVEBxQUyUpJCGbmZrcVXtWAvxoF5hV3B3rBppgiQ2ApBHTtixFnQuI/aLc3H1k+D04hqi682MG9d
-w+WYcfobkuTzbMOAdaR5H87uFdPFOS/C4dXteXu6diwZ1c9Zd4B0ZzFXoNmjTlvOdZo1dyTLlWut
-z4Ma2dZLBlBuXgCPt1E+WAWDG0mE+l67w3+ydybJkSNZtt1KSc0RAkDRDmpiBmvZ906fQOgkXdE3
-quh3U2v5G/sHkZlVnsz8EZI1/FKTGIS702hoVJ++d++5b6BHph26uOps1kWFMszhViU6OFTLbL83
-Rkarl/EEwS9j3Z3kYAVXxB6LrUQvfGMuFRii2GNhqv2KyGV7jG9oWIF56lvvYmi8bNcgs7w1IeTd
-5LXVnmRO5TKmQ3WWNTGzAdXhU6Dh5GuvZiORIR8lR01FKI2GE+4MgAjvyNyfp3rW59JDEVAilzsK
-YTF96KdkCY4BM8NrQgadjxZO6BwJh8nVJgH0sa2D9Wk3ySpICXvs9ZWHRhDC1yjD67yjK7WtBVHe
-IMKrSI8q4Vci8kzsJH364ahlayKjTDA8XLEs8VsFFpMDBkjJnWlWEIYkPD3eoJpytrZCCOwmzaEi
-ytl0tokHpT7zyvJxjMlhixy6bvyEOTHyvXbaoXzR1jihWvTYIjWIZTTHNNi9Pa0n+5Wm9lxchG15
-J1OuOzEO2MHPHTfslgwAoXez8OKDryx6WDVBaM+lrQQDTsNSPv1HhO6b1utCnLFWyHQDFTSivxhQ
-VbMDfIxenBgje+RAPKdHnz3+5FhlDZEQvl16dP1gHM5x1wTXntTqdaF2lue20MJ7kcF6uDYHf2ZE
-MATk03h0W94ExDF1NQ89+XHmElYrrg7aA1hJzXiF/mCijeDRCwOKIxRK3uJT34x2NlyUjuH50wYP
-VtGfHYae421m+aI/JdDiq3tql4r2/gwg7btlzwkSi3RMKabyvhzmUwYe3r1h3BQTFjNQiJcbh9PF
-VqO6w0kaBp/zOBSvy1AwUliMtzyGTR7KRR99MMhRoiv/1ssQD76zRfTJS7K4sjuFY03VUOiQ1YO5
-Zio7eR+yoVCF4KhS+PTStH0wkK4n34huzwuCJRBtIvKB2gUmMEDisyXWqJDnJVXhey5AphF+RLox
-8pmQOcFuhH7GyK2jRkFmPCekn5rEaUepSJYfJdIm9JhFWD+NLmi8K50vMwbPbFxYne1gsttXzGjQ
-h5AkYZO7YzIwX8VIXF6VVaPaNJM+VJ8cZh+CxPa8yGv9+t6nYXxwbGCVlnzEy6zGUz+7C3/RHRJh
-Y9nkEGaQwc6LZaLToeOHdbWuQzBbCHhMevB05H9gGIBg5uX0Eh+8lMyNXQP6PLWPRK8F81NtAMZk
-tloST4rWiLolauEOjqT8oO/eMRDpFrnpSpyzm6xtarTUcdj4Dxx2dPxNEeglNqZqen+fOIao8S7W
-dKYJbJhMo9tRS6bqmS2xInYjgI7Nj/XkYiHvNV0GupQmTT2hosp8rXc12k+eiMpaJySapNeQqhcU
-5XUOaQ855VLiXmtwEhJ3zl6sDr2X9d+QSgcNBwDQldeoq8V9gIAvg8Xdx77y98q0m5umcoz+Xcgw
-R5QItzjfhg6aVTrQ3iwv1Kz88mGguTlHIONk92Q4nBufE5km7RHmue63QdwFF42JH/CEDsCkPQds
-8JgvzlyffGdAIgUCtFM0nceM5qxbognYJyE3MbKBh12Hedl9ECZq7hy7rV5GWIGPgKacq6wV1dHt
-jexMPYID2TKrH2lIhM6EVRcWcZN5w0c7d3nFTmd6/RWuDYvzfxXwaNQJJtqdG5bt+LPzRVsfkK0T
-4HKQgyL5a2261i6pYwFsulZ5h4byYd6nhlgIynDC1sKZ0loDKV1FG3tM5+TSrublsOgZ+UBuNzjp
-uK6azsjqB2EjrRgCnjBjHAY3Cv1FX3AMTe8RlAmDmVhCnAJjs9B15Y3vaaxH88Z2Rs8G28exkPLW
-II0K1Kj/St21mhAQteFIsDOK/PJ/kLP6/z0tCHPWH3X5Nm9J+vZri8/+/R/8tcUnfGjHlmniIIEH
-5CEy+a8Wn+P95vp0cn1eHDvEmEX37W9CpuA3l74fkatmIISP2OiXHp8FQBlXWWDSeuc2m5CQ/4Vo
-1a/wHtP11y4jXURyDyBireaxX/gWPHRTmHiUSaLok+0yNcHT1I3s5E6WPPxyXW7/Ylf8N/yst3Va
-dfo//v2rVfL3jwptF1iQ7YTgt/7+o0TssyMI5LJeqTTzm9SJ+sKwzv/6p9g+Si++DCfir3nuBNa3
-HLUTPDWJ7UcITZpLAguGmz/+lLU1+3eOzPXL4PERePQshGrul+tmIypRGeMxOgquOmYQ1i+71O+v
-3V66h2RiZc7k5G462n5ElnUDMMS+xziWCTCX85/my/+z2wg3yrG5i6TLB+uv+8ttTIPK7ugIEf40
-cyQnlqG4mEy/2qdFk139yVf/Z59FjWLz4BDi7LhfwCsrQiDzZ+5jkqnHPseMUNfisMT50UvdI1Pi
-7306grKLT6kTP6BM/kZHFr1ps8O8d8Jm/mfMEeuLGM/lZgCexmtphrbl/QVN/cu3B9zp5U4gcX1Y
-CjlEWekpP2Ph7vUuyBKNsLxtK6QXDPvse2uy03clewO1yOBY9u6PL88/ecphMvNuIlwUvL9f7kRr
-oRiZ1wcj6TzyWblllw5hAn/yLv2Te/B3n8L68Ov9jtVCKzAjRhE9pNpM0KkjqZYmaomWiP4nXwjn
-hsNZhS7fl9utlEbhV/BC9YtM9nZIG6ax2aH+B5+CEm8VfAboM7/oKUMOfQX9Gx6qOsu+M2nW18Zg
-ePd//CnrT/nVR70+KOtqGwiHoTAL799fNkP4shlW10ae4lUcyoYZI418uZNogi/NJs0v4aE0ZzFk
-w9O//tEYcU1ax5btOc6XL1iBs7XGMhzoDsrkarJc4kSlZZw437q3pRFCzPU9j/YfPp0//uR/fCIZ
-CTFmWj3qKEvCL0uVMUoPkjlZCCTdtVcoWepjEmp9/ONP+cdLG6wFZcA3NJkamV8ubWK2g2c2CFV7
-u7nHtvA2OCTkLShIMg30WHZH31F/Ap1n3PbldgZcTDvkwQTk4n91Ng+JOcq2W6N4oHZxXLQgG1yF
-zdJVx8YSBJRqzk9JxDAX5Oeg80zADPfC7PmPv/pXDBlLD4dNni16LAzkvuKZXIWZk8YI3BiP30Ks
-EpCaJtaukCMj1g4N6h9/3j+51HyeY1qWCxDKXvmBv778s7XEjrQLTl3hkm8nuDpHcDME8jKPPwIm
-f0yAWhxxtYZ/co//cdUJgFsHJnWkw5NkffngZHEyGCrEtuLCMYBX10aUOzrcN9nc/8mqsz4uf/+m
-8lGU4ybIA9z13pdVJ2mqEV4tePYKDyoxLTGCvR0n+Hnell3lvOFlsgg2UQwI/9WVaA2fWLPueZpN
-ZjBfXxdi3Sy4ITZqTfCahgraXZMjOvrje/j1+7F1cu+4e1xHO/CCLwt4YBcWc3/pb/o4Nu+ncFhz
-jnva+z7eq6ye7od6/pPKKBRf79/6oTw3SNcpG1kCv1xUa+0EOqIIEataWXHG+6wsvVWrEOmzxPY5
-Xndd2pHRBTxpwgfccWY5dXBSw8csnsvySmc6s+7DGbxYJPGa1ccsGJPuoUg6jpXTXGJiJnm7Is3S
-zc0MPL0Xl8ZxwgBHkiDh1jSYOPiM3xmwDLa56XoIK7d4v7zVEanSpf00NFBcsWlt3YRXYd1hRFFK
-JNY5l53oFaAfU4gbR5q62mtV2eQgIVFv7YuBNKD2yqb/710ldQ2PpC8dHh0GoXzJVCy8HHW/OvyL
-IKm2ndW54RpJZ4B7ly0XpcrALW04YY7drSSJbkarFS58cMgMaRe6RTxfOhVO3gcBVjDlCEccLk1E
-RrAIdZN03rnSYJSjczm+uWEMm8iELg1sGKXIa5lO+N8ggzvzLvD7ttqB6plIjufieFFJp6tSG2Np
-lufeZlnb+D1NZUDCiKBgL6UtASS5Wp7RnS/jwR41ipneCdMfoUFYO/T5ub2pe48LpMbWv+yWlKa5
-ynQot4th9MFFCAroO4FqvrkLsJwzvAsrF73IKPPuB+WQJs0wo4E43lt1DkdoR7+tR9RStc48v1ZO
-6RE+GKakgeHP7ZOTmMTUIzMdXKRL1dy+DqpB9VrXQfl9pB36gZiyXhuvZWlF61OSYg4Y+/dxITdp
-S84f4QXSAu11AZc5QSlVOO715AYaWz3IujvDrBMG4bJBpZzEccn1DmdjD9UIlIETjBW83sZiGEab
-wpdbxLHez0ZXSFKT3iKftEN5/mZOKnyA52kV+Cjx15GBAqFuixhMZfTzC5r+CIsXzP9mSZhIlRiA
-CeIsfk8JEKhRbRNYEJWEXn7PWoA950LH3dPKVMIEp9LciuKhMZ5HDjYPRecgwg1LR7wAacbu3c8p
-7ukUk/dzG8ekRk1mnz9LfIUJ3L6qcredLdPxEkf+eG2WOArwpA2Egc7dSLAyfdMnL3EHJp6+kVzH
-7qpF8m2X1jbRYdxFXXkA2eA1JcSCaWMpDmQZzg/uGk28RWHdPQb+uoCmQT3FuC3V8tKmfv1JWgkD
-LfY0r95NNL1wPSFAeR6bvDOJnjTLE6ANlx62VXIZs3AJr5pWiXLrNTzU+DimilXLTP3zgqQw3ziM
-uiF7FTrv2Wnh4TM0NqU6IG7kaVzBIOpIBATrSYNYHzuvkyLRdgrUx4Eh1vluIgChgUQjrcHy8tHe
-5vFM24YwNlLloHATCUA+B1z/0u2HCOl1+yqMNvwWGKpQO6NU6bgZtbDULmYeUG37ysRBxkmrfNLp
-wpgIPBCsZpf1QYHPcOckQiCGPRFp3ZpDxgTK2WQVscx70skmkkcTuowkRywIqBwtyvrKMvrpOYEQ
-f1MCG1lh5B3T/Ya2LAPQpezEZkriZN40JLOp7dwv44dsLZwAbiyQHvNrJecma/RzycNjHQw985yn
-1rCMu55UiCMazp4ssyJ3f+KkBiQPm3vtjjstLKEytIya4kJUWNjThkccilyMjWiWJDKzRiXl3Vyn
-brextDVkzCBs8gjgTHi49ysPu8w89l6Jk78DPO4JNVo7zBPuW+1icT+ZENKmLee46blFjs/NtRk/
-RgkD4asiHDEYQ7cGItzQOnzGC2m82B3iHuZAcSGjaenTgWcbicR2znBLb/WQLLguiRq8JejdkZHb
-mzl5jXCijK6sLucYE/y2NUid2LCo4KGq3Xp6ZMyBBHTQjFT0GhE5c02iEraRw35EbI+pU6YPA/Xy
-GsZaAYLog8XamplA8akZZsOwGDr1jashXUyfHk9CMZrABesMUgquYBFjGcpl7/LEx2a4rZzVlZos
-pS52AUMqnAx2ZRD5MWdkGxtG7MpjGAd4KnkD9aFytZTXYdaV105LX3QL8wcZS2Mo9x7/OiJVx63Q
-58S9bNShXYw5OZox2LbL1kbB47mtKPY9kP04qotynTpORNL14WTrTSsrO9sGOmMarTvE88ByFBKb
-CoxBttGWGQ/QC5CzAhRAweeGMymiaTHQ8RQumRw1Op+bHEcTTicWiSLC9UXeDN0HLpGGIsimvupx
-R0T8IVGhvU+0g3CBuHgjx5Vt3onswbKz/NOaMsKK6n7tEzM6U1ZkqnS+d9KmZPYl/NmJ6Mj2xVF5
-S3VLnL37xCOPJcMxmEpvkJN3uCnSRb2QFpDiiqfdC0cfIy29TS/gD3FTJN+TbIbu41tM1IeuA+nS
-OyqxonLJmSIOtc7dXdcojFtdbDvFGZmWYEweyOqbrbx1CFxIGwl/6CliwCvdLY+zNsJH1qJSbMm5
-QC4SG2Rpyc4U7zQPDMSUVOb5xsbPl20U9KVraoffk5y0+QNrQH7HY++7u9gddXukJcYqbDCGqo8K
-hAYd2yHj2bDLPrnHuQybDqywYohIV+GRQbX/SUNo+Zk66xu0SPjHB2XjZ0NrkHky4hfSdw5bn7H1
-wDOjea09zz52hWd/ougNnb3NaMyCVChLRkVYAD9IB2F+jTSYKWJfxsV+EJWfbbUgKH7jW5P31JVY
-Xzb96jffQHcBAGia2nmSWLdg2tESPg5TI+uIrS+4hnMkrZPknmR7V9vmwYv76kD8WGfsOWRM7yJt
-PXGXi4AJM4Q8x4iE7Hx8wK7Dcu4YqKE3A2ItiFEORiDGFGtwZl4YxAI7Pmq02mVwinm7QLHejqPa
-BjiVW4AGpZjYMSjWNrM/+s4GNiHIRm2O9pOnhGjwW1nlDyhKZJdWreRyOU1ePi9VratNM1Sp3LVo
-FWKWA/TVuwR5UXNDEJRvY83p5BgJE2nAGz+rnHahcjySlswJq6NjMjzcK2WF/MiqqH5MhHJAUSME
-Fld7jQCZF8WAFbopB211L4uauURxVenD6CX9GzjQ+RGMOtwWNWKCR9TRh/KKMVc1HlC3+fICcUTs
-0MInnf1s0lr66BrbSbaw+s3XMPHHzSIwiW0HI3bMbeYCcN0s3GrCc8mc3empRAitcr+56OvK+xnW
-HK2Olh4rxnfosSuqSS3jPUim5VvNuOJy8tzmtm58NBJNM6n8aGboXCLkF0h1mNw0iKagr0SVKBPM
-pPza35Nah/ZFl3TpRW7m6iKdSpZvFMiAP9iTLWpGZi83HN/HrR1q+4ixJczx/1f2UwpImzmb8tNv
-GSrLu9pjAaNnMpjvi9ZruLAxBG+LNSfUFDoXzwGgWpQa3TSMEYhbwKRWkth3AGrRP2lu/wVxbMmj
-rqiYCVda1EWLZCsDFbDoHdO8PGCY6JbTqvBbU5HZxU7gC+RDCqjkM+6M7j5heHm3LLH1oIKh3NKu
-dsiHSqeB+1N1/re4lIgiB6v7hCJa2ptuzBwKl9AgPbonO2ZjKzRoWEKr5LFNQpStcVZ9R/JodfvY
-SwjRYsoSeywj0rviO6Tf+3lyXvzJGADemuNiHzybJOzDHAb1w9yOKYPtpmlviSfiHfR4Inn285AZ
-+tLgc2TP7i/gzbjfxzwNP+k/1W822g/3xuL3Z7Uk4KiIwKroU9o2TBWncuruBha6aou3M/nuYqAn
-2aa0kW9RYKCmKVO2fNeYH0nekfxRNtsdtWZdjnzbjtF2Sskhr0fbHKAwQGrMNklrunjjh4Y/pbVA
-rpgJbRPMC7Ewj9jDJobKlsLJ49gcZZyKMFSEZqN/p9MZySg9XBOva96jNsT7IAIoAozzdgIsqs8k
-fc1LqoluYsELIbTy9432R1qMmqEnf/MtmxdxoUOVfqLbncOIeBJEG3pcsBm6VUKuXDuSNYUKyVYP
-NVsgzipX6A8MUcVLb+CE22DF9vkRXescOP4YDMxpe993boBdv+xHm3yVnLYBxuIQJnCPvOk+TQdi
-54SfNTdSD6YTBbJOCrxJQ1bvZOk3SG/imsop1dqBjAFC4MFPrfzeIf/5s9V2cCUgnfoksLbDc9mk
-fbxFBlze97niWhEyTbwUKd4+1iAjCOC/hTxZ6MRwUHPgnBMKMFZZoydbmjTblGLHotJ8Nww7aS9L
-0y9eOtB6NjurLn9YBYykTamU/ybmxEwOjpDc0VrV4nUxLZ0dEsocPxpJOaY47N3S3xmmi6AVKpSr
-o65pBQ0+N3vWUrAI4j9t/KORpCNmYVw014M79u2JsQZuqzIN58OEWARjZWaoB0LOyzOVGgEnhu3x
-6ypqABmNWO0eZq/guja6H+5lEHTpHvelJs86Tb0rzq3Ju8Jm8jJom9CnHG6uGZVO2yDwjO2BbdYo
-eMitdFBRKI3i+xzmC9VL6mdk5MBi+kAI7OH+dv0io1ZXgAgTVYTprnQKOZ1VJrJ8l0qMsS02Eqzp
-heXLIx5jvn4r4+Euh92f7XJrrURNxjLfc17HFLOZN//gJy9vGDoVub/JgqR1NNGIb4lt18XBrzOE
-d2GHk/MG5yhHUnbNttsMZa9gUBOu+9gEnEEjEoDUe93iNtsYYEzRqqLtEtQKZSr27hB0yX7M5eBv
-F7Pzzw7tjuHSm9qY02gJO5ZVnBgDiFG+xKXlhNmb0RGixkS2U9uhMPM7rzU9Tn1TJV4DbRvBsXVa
-5L0aDVi+caH0nGeCFUJIySVZ12hC+a9B9l5+lonh+lHT9IG3g5onn6RupgtUHqjhgiTvLbVHD5jB
-6q6XWQBymdKZ177L9DDRcMgaeZx0FrziVg5egAmqb9jDi3swOTQXaZFzTsqJAEq3RVkm4zbBE/Ax
-2iPVYKqKjmD2pfJQO86U/riFYkH9nFXirIZgovmCdB+BFsGhlOGTmi/oXIx6ly/hcD+jxLpHPuZg
-aNWaY1cCa/mbB4320zUoQjlkjTZAc2KBCPv0i9u+T121k6CG5RZZ+eDuCgK5P6sldX7CJ6NT1A1L
-iInUm4eb3LJGTLicypbIxYR53WE1yjdIb/uDzRkL5x30Qdz1tHSqPa9Pxq7VapLkkAyX2baeEPQf
-vHAxMRFBR7E38WgjBQFBJl8cHyJztDCMQwZC7wp7a2mSqqbZs/G+jr9XkE5suFtpTEWzZ59DBjOM
-ygaY4OnwY3aLlnNh59uvs9I2wrB0yH64jYvupWLtqSMQaKneJB4iX5HnT2PMPSGZiki2GRyutR2Q
-TiLy38PQG3ErxxhkKZJkqE6exG3GGXRKehpeyXBhVVhweYgc9e7XRvwmyLG744XGvMph0Pu+GAFQ
-HX9Q4auoKYHoPeGi27TGHP80meO9IGim0u1SEYMHY/qLHzAx2L3LwIqwr/cU/93I7hbT/44QGSF8
-Urxma3+HY3/gmtVzGRbj6wTTTW0c3SHmj8cKIUNSdcupSeryDd1sdwv8ni5H4jIxQ8Bni2uS6NDB
-DdYk4v3QVF2z7zh5kR6fZ7KIZvZiYA5DL+FIJEyWsjUQ2/38vVX7v9iWX7At62zolwZ2RIzzX//0
-+q38/I9/339+fKq34t8iIh+/+qD+8m//KnhwEDwgWgiIgPDoMDOT/m/BQ/AbE3M6zzZjvhW3wVzj
-b4IHy/3NpTlthYLWNIwWn37430xNFjYpRrz/Dct1/hXBg7PqKn4dLTgmzip/VTw4/BkKjHW88su0
-2JnVEuiShgZrE/Ya+ACj/b4G5iYXiG7G9qOpytAH3ecf2qy9jAP3sNT23hL6AghLDy8XcKQ/N1FR
-vCofupBjnkwZXJTttK/q+n7JuktVpeg6OVDk7buaaqIzCVUr8uZTB9m5jOE6GuXd2IQtvedq61oq
-Ys/dd0KpKEZd3Qh3b4bjK1K1wxwnzzTGD+MQ3ObFcok+Nt/C1Y44yd/2jXtHi3WnknA/jCXITVhy
-oTLYfNRB2um+LAj49FLz083jB2mIYxWQ0l715qGzw9extQ5zZp3tufkUvfOAXOm6czOioiix/PTo
-5DM4CYjhxXSybL0nPxQEL71y7fmHSjSviVOVm9SNz1yZM22c/fw5Nled92jn/s4yqBn656Lz8YTR
-vxOLOlQsex3BrTky9SAEh5rx/0Ii5SVcA0/ke3funyozucAeUUc95DeHMhrzQkYgsZN8FxzePQeJ
-Zx45AQUGYQc5mIXWIBUCKl9lEBk8/pznpyXr4UMYW3JDT8hzI1ZZ9qH57DsowDqoTwHdJzbOenmD
-Ybfqqjc9LAKnde9k9k2TECGAwXGw2Wo+0rHOFR5dU943JnCU8UWm0z5164PidvrX7EkIy30kizRx
-53g7DVc+GC2PrDhFLcR37X25yyCWmbgxGlsdBRyGqn1V45lFfQeqrJ8/pGtvzfG+T54Zqcz5T0N3
-+9pXe198T8gkzrOzUdzbCUaB8LgY+kAM5dkj+XAysp1HBwLxR0hy3/Rg++WOLgdkH3mI84JSyb+c
-MDMNkuZNFk9b3032GrIQBc4R39nJ972XPGlu5eLCmR2PKQogK82iNOQOdvFzDK+j6KprEA1XBAsf
-LOEeJhCZ0dC4e0sHJ96oE1S2fcppLSgUxhd17TnDoQ+LfZPHh9SeEchlNE3Kjhtn0tFIrtIp4Vvl
-PKRmcDGGSGdd+6mxO5DJMEAWD/WiFDALRhTvdrGbZ/GRBtk+caWNM1jtrHC6LB0ctKF5QP3Xbto1
-7pu556GY4ptCiDNY0oPjxVtQ/JJtOfnWQlmm/jriPkKmXjfHhK3swNjeZ5yTRKYUWOn7b3LsXwTa
-nagr6LyyAtyrBC61pCEtg/ZiNpuDm8W8fenL3Nr+iWzLk9W7720Cr6fTHmiE8o0eSLbrFAVmpk2g
-dQEiDY7qD0E3v9eugeY/fWDR8bemMT4vZVsgGCRxOyf0se/dbSuxhryQJ9kuu9HNkVpvg9buvhup
-EwyEoozHAFfaAU3uezh0emfkY7PHnFTgtLEHQg+89ybGfckRMLsu2+CjWvLHaSRIHBgUZzhtwjHt
-odkYmGhyElU3tpHRhVFDuo/HbrjPmuWxrPlCfd5eQGAis1vBKBqTZ1aevZL2bqzEUXp55IbfhHtX
-P+eqiApY3F1AFeUtW99OmWbOvPpuKfZ1V++NvGMR1TvNF8TAcWuPw16X3hBVofUzH7rsVOTiNKTL
-rvFjHYm8RYkWHyWY13jEnGi7u9SQ1Uasmc5gAp0lfFCGdWEQ4bLpM+fCHcVWWcBi4nSyIyvRr75d
-X+XeeJUCogBlepjrKaqr5WcoOPyR2mpvVOtFwvX3EKQ+Kg1H2Q1PYQhrYahuPaCINFqrh9FMj94o
-TlBhHo0gPnhV/FJ04X6U9CokxuzaPIJ62XZefq39/koOSgE+WE1mtBAhTR0GhvLLvASb0AreQUpd
-4m+CGRL8wJmNqj2/Amt3N2XhyalLcBTLq2t1xS4siFT2ZHIDDJxZQyPCXQn2iyxq+qW7MDfDq0q5
-i4hUYTz4fnnlwgr5yzD+fyugXyogdCQB8/L/N7juUKf/5z/1r0rPv/6Tv1U+7m+ssRZegNBf5Zyr
-OfyvSQCu+M1e7dj8b4JH8QVRFP1X5WP/JgDW2Zj5PPQcFCW/VD7hbw5aJcb20KctSrR/SepJDfal
-8kEsg8/8d3WDhZYrWPU0v1Q+lpPAVMslSBm/xk2aYyFsTmM3gXH1vTG+nkiXXkFf61aHASUPdzGD
-5p9gTrK1d2clH2acK9Y+N+vlxRTy1kWsLiirc7ChHeuTRXeVSexS3uEQ6sSdnIJhOTLLHcJzDGOG
-rnW7dWHEH4idarEFGxDv7J7polkkLNHwxBhuNOSbm9NHBkcLTGbfPM06mM/kwuvPBVDeO9FQKaLD
-stoFk2ANb026LZbLbmJPXneAIN/hyDBJxnWcIZpcIKU1mGR0QrRejXMnjPFH5zuJuxkDNmiALQmM
-NmNqYrVhatgQpONxVbYFWWo7z0NJSss69L95fReE77EXc5xyxmZUO08Zqd4PocWx06BDoYkySUZ1
-lZUjTaXRAzmMBRdoyKqm0OpjQWNQEecu5pfSdNMCAAmHsShsM++i7Ru5HUQI6jO32uTOmS0O2X4B
-jfKlMgASVeU6FzNTl2nOArEMRaNeKazGwi+9cwwI9hEKdvwCvw/UMm/M3vLZwRuXqQb8mLMQW8Sk
-dDYuJMM7jFcOwS5sya3r3YJX4a8Y9LKqh8EV4wEnBhE75lDf0bTdW4V78prUewE0Co4J8BYt7dy8
-SrCFbdoJqtgblqMnpRHY9zDesCkLIpA5fhvbGv92VBWTtYUowq8IDX3TGc07RhkeQnvWl2mR/UyW
-5FQ63R1qkCBn8mnAlqKbaXbXTctv9YEAAbQ5HLynMFMffpl1+cUYT7BZBFyUeMt8NDyEXu3B+Y2L
-lvotq+Nq15Rxbm1oLRb3Sc2UmOuUj4+DmfBtGy31uc3Dd4MrK/egAOyYqqIKH4q+kz8mBuopBI02
-i08j7oY6F9t6rvZqcI/V4n0kRJ3vgipjz0SHIL2FxjGhBr2bXKjOvyS8nU2ece0J0PWjLsyGI3QC
-utv7qXR2T75xdjFawU90L8RiuIQM2MWhheun21lCFDPJbjMfcZdfaBKOpiDYFYZ7wCVA1dvWEb72
-YmfGFMF9Gq7agZanRyeXAfYXgxCtPShEWR0WwXBnX/lTeNECOLkKcNaXEbqn66kfLoQnntHg3BTG
-CAyP8dKmscdg2MOgTs90wsguMqowu/WK5VuYibcSaxigB7gm9yR7v0zeVBGZJEX76FeB+FmwY0Ed
-MhLJQyO8vT2L1zJZ43uMuBnOHGfqDwDcQ34C05Qm+9JGxrNZc5aukeVi1mcTG9Ulkez97RyUUITL
-1jgBv/VWPxrjytNUWumOiekQUih3mCwuemtJftS+cM09A3HHhbGNb0vmB9ESPHSStT/Tkc2sxt+W
-AU3PTZXHZnKG/OQu3SXJ8hRDNKvm7HrGzu4c6DE54UXcqpwbx8mMDk9D7YbKqLRbpsUjPPAxtuxm
-2yyJFNtQlTkjQin2uHsXPGm+8q4FbDlIGHTFKnBL5rhOx6pqepRmkDdv4xTDuC7hRcxtMEy7HhRE
-zo1roSCMDa4TjVXZ2siKzjyYIv6vk7uF4Eg4s6rIkU1oIzvN2lKnMRNn6YIG2tdBgOOulpMlT37Y
-OQ6iGgJFsl0yh2l7cGO6opHj4CNkuoFJMSDHoT8ht2Xty3EWtTein1d6hRiH+OYvgAkTJ225zWoG
-kC+jpK7ciF409kEYSdcdtApxYhGy1gTl3jTALdKjuSoast/gDXsHsCASBEjfvwIlvbHM8iVOittm
-rC8LqaBA5uNNgm59Xy0A0SmwEnzk07uHavSu7RcDj43Tgp5vmRGb1id5cMNhMWp379Yx4VlwqL6b
-rfA2c1pLaOYxRm5l3zbx+DgldMPTIvQgSnfpKe/q5bbG1XwwUozVs+kFgCOn6zRR/SHIQA32tUHd
-6PhNxB7g3kDYcLaJ6kA1wAGEtk0/wM1L4tL7AuI+7vkDBlgcYbkDRx0d16WVulX0f9k7ryTJke3a
-jgg0CAcc4GfI1KKystQPrCS0cAiHmA6HwolxIfuJzMiwCKv+5qXdJq2bXR5QLs7Ze21ywB6tmMbE
-KBCqJPyIyzYsvpQ1FsoW+tdVUvjD1lZ1v6dOOdzg1x33PuDUfe9O39NBfVIl4h3qaHetRecVWKa6
-AtFjPmXwmWi9xpvcrp9LMJBXQVzNF7hOnGuwz8y5YZTsPBcXvGeSgkWiDvZsXvHldPbHQv9lOiiA
-FT+FBoTjfJsjkCFMcjiNZsPaeHVcPAdoplZjyKWHXsOu18aEn0PeeKxxvu78eZ62M4fCOTZ+RqwJ
-7LE9UliQgtzFwv7WwrhbuZwqrxvPl+Yqdtw7SszDdVKY/SqvQ2M1JF66lh56F+woKTCXJGmfyMlI
-H3oS9372SZl+iqSuGoQs1KG2ePzEB5ZP9yIu7JFTNt+DBaxi2BI1mX5FhAqJXloATC3IUjM8Re1c
-NBwzvxCf46E6HpEi8inP3a5/6YqFnm1/xRjQXecvHbMhKoEl+CqfniwKMZ8cuGhfGg3nLqyb4qsJ
-MSpd+ePow6w3nEdWDqIl4rhTv3mH8uEK3Ep32Vdm/8kh8uGX7hQMLySrNPhokQe8slb0GFuz9WDP
-btnT0q3geS6dQaghZrue5vk3fVvzwZ89onZsZewh0xq38AhSHyVlXT8tpq5sK2KL42wZWZDLsat2
-W6r1DmZ2JisoYyxbtXeXtZ7xyWnGX95kZw+xB4n02VBNZQO7i/PI2Oo48TYoMwa5nTpiWFZ2GlX2
-YsZcGmNpnDyRk8jLSyzi2mRdv1QOLJM16TAoVCkE/yDxJN+x2NmbngpSs6abVDyjxiWTsnWm7qmI
-g+J7p73aAdbTROpC9RxqkyaDgyihYHzFqQ8qNSI873KCdreVMNLuusq0wbCgXn4cnUb9MJnrILlV
-U5fyO/XU7TTm8EedZNU1uyGz2ExydAGgJIO9GcSMAUJiu/uRSZ3kl5hJw7BHqBA37DyMAL1ApW0m
-zDZb0HAZUNhfg2+yYULj1dEyzysIM7l0ravGQDMDjIxpGYVkAjYBqAt2DhvNWe4s+jNZJI+5Pf90
-2/gLzEa51qK/yqG40mXgns2ROV46JFQS0caSLQhp3BhucO2Z84MTs50yfXz8cvjRmiXBPtizTb4r
-MCZscLYsYHe9Sy1+RaYUUzuxoUy0HOrBUeqU+V1w8uCbQfGX7SrTWeRhRjfsyNxmK1M1y4bOB1My
-bMXgVPkVh0hIlw1HRcEqv26j8qFVZMv4E5W2oSVvs6L5TXmN4zQNLGfVsa2Ho0NePJ92XXeGV64G
-NBgaKXmv53UwAlFdG7aogKi5BXqrjECUm5giafqpydD4PoJg7tRT6qfJtPOqoEFDQLVj5bgD/85E
-14igzaInEQS6R1nhJe7E9Jy5eHspfRbVL8w69Vr56bZU6FsLVEife7q0YIOl6roHw3eWQwKKkeyC
-XMyCljB1k88Ubft6p4rW+JWFIzdjKouZ8mIYm5CXYzA3G1UGw6+p159cetGXzL3iXgWz90BQUOD+
-gB8n7GvsoP1ngdBp3+qq++67ylM7glGdEB2JDO9j1pqvdhu6d7htlwDeKrzD/D/jbZrryriqRZ/F
-kEQzElFniuTgBtFS9beJhcCMrvhU5Pes0Y29TyeHMgPnitT9hESiBLsTQGi6gQQwzvsuRl6xpWak
-LqpSusxVVamJdwgwVtDHBCNVI1GixubFE4DjtKyMXdHZzrMBuWIP7DlZpWzmjbsUB/m2bBVCi9FG
-fHhrldyCi2z0i7WsOq/5AVugor1Sx+0GHVk7rOsXcLZtjG3D5myu7svAkHvmQqfF75yZ02UApYQq
-EHgEoIoYGKs1uhjBamtjZN7GszMEsHOdWt+hF8R80bcTC1lUonVZ2loF3tp5nXPWZcVnU27tc9Tm
-MxBfv75AJJr4qCAbE+GDkcEIp+CIbMQhkolcJkJgSAjCIS14Aa0Y3Gjcf0ilDfmS/LEOAwQ24fgG
-rJJ/yRdeJn8qnUTubdQaFe9t6FVwE1HjL7J0T8ldjlblgzAw1bfSJri0jcbvBAJ8bnnXHtMksgh1
-CjlyDqJyOO3g+dujkr0ME/bU11bYB7CvHaO7trh0cMPaUneJoZuv7gtb3SRm6p7MVl5y5vq1N0qK
-x7KlgxWUF4iTZ4IGxq++Kr/FfaSpZmnjK8dt53dPOmpyX/E9xY987WS0SArpHH4L9AnRdTtQcGoq
-yoGQTR6IUAXaoz7mBKDuy1peAZ4Xaw5zbDhjI92ktrnmEUaocMZhl8PLJU5BrdABYopngkG4238o
-KWJtZrsFekqS27pXrbcCDAZLqIgea6goq7jmEGU0Qc9+D9HR4xQU134RXtkKzsLaX6j0TuRBmKDb
-DSJN/DbcKAAZP0V62rdpAEtIvNDtKYDSoVAv0Hs7JN+mjmAqPrIuWGt0ohDyw6yHli/ShZwvXyj6
-cWSVHzGJzwqtMEQpDkqqrS7Tl5lwcnVqbwQBRQCBWe/9C5KSo18TzO5snVA3fkxpCHk7wxI06dNS
-0vvGIsqueTA9+6sfxMtBfYrGHwN/G5ktzevoQ9NWwC/asPT3cgz515W3RL1p30L4GGh2jb5fWEit
-MHM9YJNAxEW4dB9fi0F68eekW6TfRoIvB8l0CnD2Ew/Ltz9qKROIqSMKhlUSF/GTRZsn24DXtD6r
-uGZ4wmeSYsj3SSrmTRcLetgJVvI8tNJnoJtzsAHGwITIW8C83fpgz1NkckifkD5WG7+vPfEdTX9E
-fx6+9NNI1s824iA2riH9dvmG/2fxU+jIQNLokej1ROO6G28NzuCXw+A1l6BEE7KgO9g0KNCkc/m/
-7dTDlqht2uJkP/X2e/O9jP/7vw4yMF7+rf9bT7RAQGJBMh1X8JeXouH/qScK/z8ksaHCdEz8WI4n
-Gev/1RNpltLWDKg1Wj6ASPt1PdH8D+StGB/pBtkCuZT9N53UAxuaQ01SCIzty5+DE10cVBPttOOX
-U9THZmIQLU2gWPJFzVNBr60OxYPKNAjCzI876L05LOwzDiprMWK9sogt42PnxMXpWYLyvLVUO19V
-Mx3byMTQmRWQ5PYBR1f20eIwvNGiIQxQgAp7ytBADpxoBhppdhiGcmW0rXqOG3Zmq1e14Id/hn1t
-bj9yM9jvWT69q8Di3h5Yq+yc88qMgm2VKbYoue67H4M3GajOxwAuVpjdtv4ngJfxGVMXT/P9TcBX
-6nqmhTrZO/CRmegqXM6TwKsmkVfrjtLivA+0BWD99AUeeMde7jZtc94qx7Fd/HFv73ZRkjNBSgFk
-5rYPn/WUOpwigO5fI+Dp5f7vB6PDwkq9vPdUqt8O1tG4j40ObwbpouZVjWj9biilsdFeNXw8PdSB
-eXO5Lm8ZYjG8SKALyw1+9RZZoXAnaE2Ee6cy/JV21vTsd1LvM9LBL9IU1Obp8Y7cR49CPv5jPPS4
-ZRd1wqvx4BezTkzM4F4l/Y2BwGdNlaRHeOaLv39kvrCJUVwuDVXFwbuReIt4q0uBqU8CoYOA6x4S
-hFU69PJLsmJOX9hBc2G5kb5A1sGHaKEffSEmvLowyCtejqu+XFkIJtdhtbRCDYUondD51v6Fak6b
-e4W59IwJ+Ni4aEcY0qEmgvP+7Q3Fo2DltiMZdyiR6Y9w6u7syUS/WCbx81CJ6sbXsXEGAHHkMfp4
-4WHisvfn/zj4HLTURPpS8UcOyA4tLPnK60xVaynZO52+sUfeUNovApMxVAHYDgdvKDvqXqLtoALZ
-zmyde+THk6f9CxJa8PqUkXFzerxjl+bjkUcZYyK6ORxPDTJSo4+1sWqFd2kbHPdx1KBr8elXnB5q
-+ekHU7jPAQpwg0SUA/Tp7bMTHg3taEIlaULku8OUN29Ibo13/2IUGMYuaBbPC17wEa/eTJOGDqow
-ZhOVkousQtQGWLmGM1yMo7cNe/6CS2YJXhRMrz/slhZS401s4VTujnJN4FU+XQgyozny4zk5ZwI/
-9lbgtheki6C2APPwdjjTnL2GgtnyAnZPupsfi0qBVkG7tAL0rs48qGOjwZv2odTAgRCLWOz1xdVl
-m3pOzcfdTCq6IrHE2WFzlZfmONbX8zD3ZxaAIy8GMzJfMy1VxjzEq2TSrofRgJo0aJStqzk2bQxQ
-lRWmZy7syFNjCMe3/IC5ywyWf/7q3RhrYeGL4DsetZbFIoruNzKrfKo/Sdg8nX4Rj9xFbqKwbM8n
-WQux29vBwhHvZBf5S+5WTLmYn6N+lo0gxDs0kMytci3iv58dWbF5522x7BTFMnu+ur4ZOy4qG0yj
-qU7CNfFFG7EEUKK/QDwRUgkaR2s4sxIcu6cW28Jlk0lfe9H5vR4z7lKjLgwEJbLNr2wKjdu8IMg8
-E4jnTt/QI7sulu//P9LBFtSrTfKoPG5oQD+ISjyV7U/M18gmaGXha+k6r/gwzBNRSSlO5XMvz5Gl
-J5BMXiTOuSAEX/rtr24u4m0/j1uMf904d/sZQ8bDDLxto9xWbQ0AzIjlkvDz6Ws+Oqi3TDN8HkIc
-QtmbIhishJQavBPc1CTIs+di8p6JpmhgeipnN5AwfWbM5T4ezNPLQsAMuhw42HO/faL0stABOU25
-KkpFX4ro26Ae889IE9OfVeEU39zCJLndMJtLe8AadvqK3z9l3qKFdcEOm6PL4WRgCkI2nRzZcS9H
-6xG457TK4yaCfqz629k3FgeNam+Nuj2zEr6fhZbXly/HZS1ETnGwtQBSEIBDKEGeguq7Xw71W7wI
-9uPpy3s/KziSvYTwyPOB9nW43mpZ9klikxrMBjv+FqH4jzdd1VblToRj9a3r3ej76RHf31CGCaDQ
-oM+1EdYeTHoxfZ7YpN66KjpqDSuVlO5DQPJmREtOJDvXIb5clhExviHZX+rM9HBs9JddPcZBuWBT
-3r5M2qCyZAm2pWZdxzm19RoeHvxvzAXBgBZqlZThPBCxY1LmHZRh/T599e+nJ4c1BUgNMnLH5vD4
-dnyPaF+2zUwa9ojWjP9+z2oBUwHK4e6vR/JxcZISuQzIQf7tSJwl7GDOWTVLGojlppz9AQ1Khkh1
-5+nFhn56uPdfKbprjhXsE8GfAaJ5O1yLPzUdOxrqnp2rXywoYGrRyVpZaG27rqz2UYF1vh6w/VGB
-Fp9Oj/7+Y2F0zyU0gt2cZR0STbre87K+ZfQ4b9Jrq8bO4qal/def5DIKhQ02wiaMt4Nr5Avxkywg
-upI06IAQBXGHz8S4/BeX4kOqE4xlB4frdEsiLBIGBvGGuX4AQ0qOX2KaOj4zsR358gEiENFFvUay
-2T7YVZEN4hYD/rBVZKJbCDCVQ00oossmkOMVPivjr7eoAJrIGVm4NrAu5cGb31IGrOBJlwhI6Ejn
-2s/v3EgjP45G8XD6Fh57FzEowykEwsdsc3BpRZrg901QXkg5tJdmqlAyWaLY2NOQX0JBNq+U07mP
-bpMiIpdxfeZTODLHsK3jlvqe7VHzOphj3Dwjg9NkMx6OJH6sFCTOB/D5hJuZo2w+2rbhgool1+uj
-SAB8nrn490s0Oy5rqbQtfEBU5G8/xAqMCwwe4CIWlf+vPIzEW5U2H+O6R7SDqyck4BFnkPsvJhwG
-Dmy40OxHmOLeDtzRT1fEjVESs2jcGvzCS+3D5LVknz2dfsDIF/nDXm8KKE4CZoLPJJcanOscfopN
-TOKIgKbg48YE8ktjuNskWK17Oqe2svexdEoEfDZy3B3RnFG387OcvO/WCRD2uVNmfZWdTyonMoJq
-3iW28n+XE/FL+KSHkfY/2q3LPFpOM7qIG3jbJrBBzwLKjOfAlYBx+oS4UWkOyHZmAkiJUepp5BgN
-nZBtwZYGdoKO3T/EX6QU0q26kKime3WL5UNCh9SWi3kWOdMvREnExtD1HIk+wL1nrJFk8cfSPBi/
-Ky/Jf5pOiQkXcpq59NdGzHFF2+KitXqIdqtIC2PaZJE/3MTFmMhrS5qRWjU2efWLmmreN57O3XVu
-ABXHc2La0RZ9Sf3BSumlrPTURE8TvWyEkFzmj64TTsD0k8O9mXtpx5sp8NSVQXumRwxv5d8EiVAB
-XhQB2IMUrPTKzCfUHyLoypvZA4+BabIZt2SeKBfqRWhhXfYAd8fwVCApNNCPqBZ21i7ukftsRmVA
-a8Edq/JNK/ruyuxcstUlRwQ8FFM0PHYcwjqcDfgCYe7kmPkDguAlTJqs+gFmA16EaUEk2LHAhh2p
-hTU8X8uqhLmyi3J8zKWGruD0QdZCjg+qejMkVV2tBzqdH/opkBzwgr57jPPQIGdwsrvrpGbrz97e
-YR5RhdXfqdyx601LIse4HmgXfYQDAqmLSQTvAnKXL00lu88C2Rqyxj5Jx40POYgUszi0fqYarMtG
-a/rQW98d8ZUh2ugAsIyqGXepVyHSwh+fPWjPQg2UNDFgDWzbsGToAbE5mgtcr5tYBnWwGa1ynKB4
-TxjyZndp+ZeUn1Dwq8aN1qk9G1/jKps0YocSlzy4o9lYNV3kkRtRoFFcq6Se+y17VrwtVaKTzz6w
-/nSjoyIwNr7M+x5ZZY1kVuTKfyyUiNt11xvqW1hTdMeh3s53cBhMbhXArR6kl3Qhagdh8LEI2qRZ
-Oxpuw66Y6eii9DXUNUAZh3yzOSB1F5OHUkjXEqzTbTO1H0kp0ti4SVD8iaxNEeRCevu3uZDxR94G
-bgOCA1QSqTl+wf6EbCjygQosiQ3CvswKJ0T4EGvb2iBXatrvAz6k4c88xU69dj13IBuiqcxiG0pn
-qDdh3tX5XpetZX4pRDh9b+umxD4e1TGZhn1kZB9qoN4ZyJW5XVJ9Wo47pNBkMZ3jsGr2g0Q4+clC
-+GrAUvHC/EoV4zReaLdOnGttJ1GMdGFqBJEIdTt9icwheYhLiUoXOQG6VG0VWb/qG9P/PJiBtLZC
-FwYiFM/MkStTbTNX5tzIe3gnrnffpaX1UdUxKhISkar4AkaI3WwaEkWbWx9hVP4l0hghtnZaxdVD
-V5qY2vshVL+6sSucjZnOOaeXJeD3t+ItwlOUu+H0rUMeQBZxH08lqmv0uiR8GnZwnQir/T7x94d7
-HNwl0ax1Tuu1dEqnw7PghmAFVqWL2fSp9xB0oyOCTnGZMgNKssTLFudamSe3YzeP47Us2HHeDoCh
-un0yCoH5uVfmZ2PSOlwF1I1pn/OCKxIf5rDb05Clv56XHQIxI1PGfed2Otj2y0tKpxfTzh3AeQSv
-PYy0DsMzkUObZp6wCWUBNXS8YZX1oBYeQuy1etinTdJ1ePCN+EYXlRPvHHSRxnUeFyr5imUnje+C
-wbMBgtDDrbdQwqRDkk5G53ToAmu470PI79/JNCES2zfJ3F7jPi6rdTumvXHTpZOH/ZfNJ/Latu53
-ZkbyyY6O1SgfS/Do7bXXZTmid49nv+sDe/hDmGPWXJQFaUCbbAq7lgcSyvQyMq30pwnXKkGBbCLr
-gnZZ++s8KGlP0/4ZTOQrRi1R04VLLFpdT8ZFUozBB9uJzHBl69khyKWhV4MX2RzjjVtrDMQi7JSJ
-4NLWZBgUQUGbnt4HUUhzXnyVRekyN6SqZ3fSVU2+Hydbd5uOvj3Cb6p8ZAZwSeuwdc0fssOTs0r6
-qb5sQqBfgxtaBnr1IP09tXL67EVDdOuFdnwfmH2xs/Mgu7dyP8suvaJXw7psHZ6RzCd73rUVckjQ
-Canu7mSBpuSSiPMU8iGxNS4FjGkyd6M91Hrt9UVvobIoVbmpbVAzO4uMj3wzT8zO60anorpUdjZP
-mCpx7q9tOGvTNncsq7grTF2g1ehZQFctqR1ySyLkfDW0Ossu5NgNBqI0Z/mHoRGRSjpDLFsRL8mz
-aYzMCbdVAb6UuLAxyT/nsnL8fe97dc7zJz95Z4E9Ypujckw/JeqbiJSLmiwKvldU9zT9a4gHmEGf
-QNB1citAfPE2CvghzJYm7ITWXbIsuwAsD2LCxHmg2m/m1+1Uhu4GDf1ibyayqFg1dA/vUL6xz6hN
-hTot8xSHBIvYst9hali3nqxzyaGaX7e1sSk9WHwXzQ3t9fy+BR6FTqFKavKWI8UypkcygIn6DCAb
-TVNoA0/q5/pzlZr2I/GrbDMwWbcfBoBpNSFwLgEODrw0aj5R5IAWE73zh96HbFcOkuBkw/YGBHLo
-O3lMCE9b7tPOG2HOBAKalbDU+Ch0m2c7TZQIOZKxnYDK0Bz7+dj1eIM7AMYGKZTRn1jI+HtKlhBJ
-SnxYMcq3nLZGHpH2vGXqctOdYGpH1ER7s9+zBqePM0wS/OSd591Lt/bSTa27fl4Xbh18y/g8aZIg
-Q/7kx22DySLSLcFSnRoeiOYxwJT53XgT8V5hfKoTJGOFH7oPA6rJG6KJsi9DP8gfaJzcaOMA0PvK
-24tQNnH98mpEScZa6fYqIyjHzpc3yABf4aMGd8jTU9XdABb6jiBdFPgc0/NvTV0M3K+uaX+iSDTV
-tvdtuZ1tDXBllATdrXOTH7Mas1z/IUWzeS7rvkTd3giS8ZywxeyVd8VmMEYtCD0xop/EryF1HGo+
-GhSSYWutU2VqzFioQeAzUOIFo0zOQxN1A7hHNhHTDQBpMr+LpNUbSCHDsLLLBItkoMmz2da5pz62
-s+9oWLaLnyJY4AKrvuaQfTfOSzqqRMzYroeeGiW6xqzRl24RlYptWKzYjJU1ajsAD5j2bAS6JCOs
-yOwoiSAwdZit25abvkJxxrvkaF3sbYIyQFrUMWGIAy38ek1nl9OK0SLx26LLZ+s5CxKRN9R28w9z
-M6MtN0xtz1sd4Oi+oF3UfGnxpQSbMkTosoFygmrdR3AMg8FszGCTazYMrBkaAkYTLxmJ+D+77ewT
-fkhdseePrQI0PIA5DDClIDbntbBm8Sca0F1uh4J4nTvbwerCHjwxgYZMMQHapSUI/I10jG7SmCC4
-boy55E/XpYPQhwkCoJpk6XtGNB/MW9Ww6cCFE1fOhTU1qcAr0bHLqVSCkNAL9RhcAGiAzUH0avgp
-Fr6hcE2K4rmadM7WUzqzcV2UsQd4yZ/Uh7CFLYKnhcy/NTwJZFWsFdG861q7BB5CNPnNpEpRY9KM
-gSzVXiPNtS/G3Fgpa+6QW7q+8q/8IPF/s7/ji9OhzX68M4P6o0ERp1s1eFQfBgdR2Qqjc/KER8JT
-i+Cz/ZMVGmqCkUgUQWnXQgZp2skHY5jF8590SoOrcsS9vgUE6XzIWj3fzn0+fJpqFzyklRjFhT8X
-EQqiDv/W2iuCFA1QaPu7AgqSfamtKLgeK5K1Vh4apj++2RJYC78zHtcu+Z74QRqDli+rJgcEdEUR
-adIBtUf2/cAsl8SL7JdLMJBmyssSdGsynOJ1R+B5s2Y5Q2hVyhyZqYF9jdRLv+XvVLk7kI0GOWk/
-6wHDU1Yq5LuUUXnFQn45ae0TadFVN2KXqF1ie6ol2o6keHMa1sNggEDj5Qen0tSkvwsmPf5sAyH5
-iuD5aFHM9miDm7FHdzlAJ1rJyOWFJoMHbXBqLPqvsu/HH2bbMHAUEIW5a9KE1zIzWHHYSIrh4zCT
-B/Pg+JFbXFRBjM0XGAgKWK9HhlqWGOk2kmCajhkv9kgrV+3wu1mEfUMe8AOpBHJS0VRZMWPZL6Lk
-og3vUwTZz+YI9wxLN5vcFTtXeIPYSyzN0j1yPU5E3AwOcpVTSFDD79Rc7iNAx7jbtpGJYm0gcEms
-U9Fw0GFfFT+iIV5ggE3NzykTPfw2I8GfRISwNV1CjjKjyzINGMGZO5xkrHbBTVMMhbzBQcPlsM8N
-blKmgY6VesBVluSuJ7dsrZfvEACI3jnF7O+mEPo19D7L+uM1RfvjdN3hoLIjUE0A+8erKXi3ycY9
-qMm74dB0tQO+sCOkEl9BSJrqhRmFNbc+JIcGqRIHMkHmDOCV5ky/6aU2/Krm8c/oSylXSOqrnn1Q
-2fEEnJkG6fMqqoTBbEi8Oochm32x/0nVOZpuOIac84g0z7kjmzL1pz04uXYLaDdcxZPbfDYc3qHT
-N+VFXHHqdy137VUnqjQVWLg6hr4UTireNlaIJbIIynGb2eafBIk+8NjISMwVJDcwqx3OuAzB7qop
-NOcx5XVfTv+igyL7PzcqcKm+kS6CQu3gBykUjmycUkrfBYdkROeg0ENWA9qAbeVVZ8p9B6Wol9Eo
-afJCUEe1+c/by68HUQ6ZRd7UlLr+D5FItlThUAyILEd3/BFmlX2mdHvsNZRoXSjueYsQ7aCUWoZh
-W2WtzwZTlfaDFyKjhormb+FNjpeTNoN9XcY9cWreGeHJ+4EpKDrYd3kDGf9Q9TZ5hpuDLeM4WZKB
-TDl1up3QFF2PyNN3zag60qWU+gCuOtqdfqQHJV1u8tuRDx6pX+lMmMCScMtNVbyp7FQHd0wE432g
-Coz+Qziz2CrLTernQjS2vtRxi9b49K9YbuzbN51fgcJxCf2QEjP120dNomrFhpsvMGcNXUIK7ftF
-fn95epT3LxSjAKPhZfIQhZkHj5ehEydQfE/OYHVXrsUqjt73ylfD8CQd+1xEw/tbS3OT1wi1r6Rn
-7hzUbZmA3UA5XNTMP/1m9EuCdab6vcwGMrCNnFadAYNj5XY9gIXe2p++2vcfK81H5jTHEbbHxHpw
-tb6galQYfD5Nx/G1G8Hz9g4TFa7Ji9MjHbuv7KUtxGwoxVB4vH16dZA1zZjQyg3RcF/maQSanQMr
-hQVpcH4GhCn/SaL/Of5n9Lt6+OfNeC3MPDqig4IW1vrirj+4tZY5p4oTLhzR2Bh+hpNhwHtL0Za7
-eC4fmnDyzygujr2gKElo6iziXTiyby9xQCCDXyBiKm56lvVgrltchbLV5e70vTw6EGq7gBam4Kkd
-dBeT3htUobmXM+4YNm8dG+ZxVGdGOXb/6NZaiAgRhVnmwXo7SL+bs5hRuj52PdjewXyBIb7Z4uCt
-HlrcjmeaJ8deRqpO5JSgcGCKPfjAvYoC6uQvr4ilg8ehnBVA3yiSxrbPi7w4M50ctGpeJjWi5BcL
-gJCCOfXt06qCPu8RUvHqQ+P4nmCIokSWcSyaycJtS/ZH7NH0p9NP7sgczmplORjjUC3SIH476Bz6
-oOOqqlz5CVB9HnEIMGcKV06R7ohm9bHOOAL445RnZy73yNPED0OvBikHc9sh+4rKaBX7ii+9DXv/
-q21lVsqWxdIXhAf1u8iJy+3pSz3yki4zGko12o480uUHvdqYtEPQuSKm+lk4BgqRAbBVbzjm7vQo
-R56itD2+NvrOPvLrg5c0mMJosW0sQo3MGtkuk7a7d+DT4gnvpvBnZmH2XsVWnwZnru/oyKxDZGFR
-H/oHufHq+kI/nSjxIhGpMm1+aSed4RPMwuR+Qhj0g5UFvyN+bR2emUiPfCUMZ7LjodXHFR8sxg0d
-Ctn1jFtk9XjVljjGvNEwHgNcaGcmtCOXiMjKQc7FZEa6zcHqoHLTngfimlcVLTICqg1nP7rAe1ZJ
-6tiPdZU0XzIrOKe9OXKBL51x1JTowG3z4ALduuyDQPONkN7hbswGc/lCcN9jsfzLxJdlDggcZgA0
-RogA4Vu/fUfTpiuafuYCQ5LeF2jYSGAYwe2n39H3X8KiNyEJ0Mdojixkuc2v3hRTU5hLFKo4Q8X9
-fTZk8P7jVJ/ZHh4Zhc2Rxf8weSIgOJg9e+gPlJMDWPQSZGNtETMBS8Q789YfGYWzD511VnC8Lu7B
-w6EyqEcOOaCSJjop9yBXzWpTNQYEh7++aczLFr18dK68CQcftqMF4cUuCpp5MDE0LWazKh6/nR7k
-/aToogr2CZBboID877dPBjcNwcO0uygOutkVcyf8YzoJXB1AHHubxVE9fT095JEbiNCLwhzyKyaN
-wyQlyLRokHL20o7DWbmJ/XpXT+O4OT3KkQuTPtMiImFJoNHhKAOa/IjjP/qSABhslcfyBilduyN/
-Jl4TPHNOmnh8vAX7+GIEOFzXtG32EjBiuXJzg16okTcEHJUhTsBtaqbVYz82zs/Tl3j0Ri6ibhYZ
-FA/vygGFmQTOokycYpDpGHCiTV5189+/70CRQTRBRmbWPTx0UHqlbD2yvvS5GT74I8HHpFJNZ7w8
-y3v29miDIMNlJcFHFHD8OJghFvR4hMumWDkI/XdxPrZrJ9UD9OUWss0AIjvLolFtMGoW+9O38ciT
-Y7eFlNzFuUGg5cG0oRMzUQq51qryRPRlkXt8mftAtLu8opy3cMCByJwe8v2ygjiHB8ZxAMMIHre3
-X1082HiyvbFYhU45793etr7lBgCSG8OmZABLXTsWFdmYDsvpgY+8MngbYFBwBuH7OzQX4QJi/1qR
-zKDjDpO0K6AS1vXw19tYLg8THt4swF8s9G8vr6pH2QeQyeEK+uWefiWaCKSAkk8hzwv3zAt67NVZ
-lmakXdxRBOZvR+tZ1AB7IgXJl+yQ1BNLVycxBPAGmQKIi6Zbl0bZngbK9PHvb6fkNqK1IrKNc8Lb
-oWWiFb1vt6DV4NLxKiTO48nyzqyex15QghvZMvOJcFI9uJ0042oMfzyqwlvwPqVhfHNGZKpTJtTF
-aHjn4gyXX334LS4HeUk9aTE2HawJ89wC8+pR5rhF7H6wJ4GqyffSpaIUJ2Z75pV8saC8G45Kw7IF
-4a+HcrlknLIwjZ0CRneoh1WDeKdftVUw5heuNeXlts/IhDe10/gUfqoaqCyCXQjMCN3O/JYjd3qR
-j3Ek4kazvB88z5msHY8sBmZUtOxr2oi1nnapDTVRRkVxZoU6FJGx2vLmcHrFUbhUBA5FZMWQAci0
-KYKnVhgBcCuKMKWTBHWnXsf4g4hUAqJAekPt4iw3qW19thRnOTDzRLGQDZe55U+LlJvxIh8Nsr0w
-68Omw8+PyCXkeHXmQzt0nb78YIEznL2+idTu0Ew0FkEceSb4hoAvutgmujNvhzF39kjFy4vQjxY5
-lmr3MVwBzBaEi9Bwm6T10eHn9me+iuO/Bhta4Dke68bhe5N6Xa5NGqCrcJ5Rf6FISV7cMsJdkzff
-3fP2GpfmoOkUARzf1DnROYaefISIqfl30tx/7syr3+K8nQhipNopGuCF0Qb2Cftkvh4IqDrzAI69
-nrwvmFCpVjHpHMQzVhPwQCkYJepUvBZN0P4GGpPd6taMrghxGc98DkdWC7ZpHp8kizJq+eWfv9q2
-C28miA6M0Eq6jto2xoyQdSqGM/fuyHTDKIvjlZMWj/LgoxvRWOZjzxEEGYn6GqbwdpWyo+84nM/t
-Mo5eEMc5HEi+advmwWPSKTQPmudUPGqZbcKGhlEDLefMXuboKOAVmc2oqrwX4EYyrG38aaibosTf
-leMo+g2HOHBLp5efY3eOFFhWbfoMS1nj7fMh1k/4eDwZCPThDm9BupGVlo81bLanfzOUS5F22bPj
-Rnk7VNGOLZocHlI9dvW9H3boSzIC9Bb99pA+/4vBkBFT3GP3Di/97WCiwMXjLXkaGODiXd93OIpQ
-wGxAOBS700Mde1bs/lhbcS2yeTh4+RYCktciEuMw4haPmZn4d56v/TNz1bEPF2KAXApPLDCHu9sy
-1x4tS967EgWtSZr0kCIZSoZPMbWvXd2H2eb0ZR17MygjYkETIFfx8by9g04HIRHyNRuTKkNSPBfm
-c5OiZ+DIEJ95WO+vjUIMZgG5WJADvuO3Qw3CCnIwmkSgVoB54lA9Vn5zhfzOuyA9TZ+5sCOj+Yj3
-MQsF7FDwehyM1juQwVPiZ9BVeleLYPQjSiY4f1Y/P4QqDs9sZd+/H0RsWIG7bE4469sH4yW4ygQJ
-hEhKSJ36Sugm8hzHHj6cflxHR8E+wmfMOc47nJcMQ3sjNBvsq3WUff8f9s5juW4lW9OvUtFzVMCb
-iO4ebGBbUqITRZEThCy8SZgEEm/Tz9Iv1h9Y994Wt1hicH4nFVVxiic3gDQr1/rX9wMo6T4CSHnL
-d/eVd7cGWFSQuHdwep99KQoBS9L6iLlqqeS1YcReCxUvFye7mtwHDD/LX+9+LKYg7Sp0zT4X0F5+
-LMstO9So3DZowuceUJk/stp7ZzMwRy9XDUhV64ZOwfU8TWJqYwxFSnJzbCycPIAOauSt7TrEGhU7
-G51v9sZq/vNrsa+jscebGXoCsouXjyVgRjlKUu9TpRgvvSWPP+jjZE3v3t09DCE8WsQ9dneu3i+H
-8SvNkH6Ap0xqDQ3g6+rn0gLfhfYTv/eBXORWHsuJ27e53r5fjpQg99VGXbQbQ6jssWq0Fpeo9K3M
-/5+BPsNw7SWeCNBE0anxchgPqIXwPfAjwC8tgarFz62LSU2F9UHiTbZyvwKt2OrCwcIzRxUXXMex
-jTKxNsSb1bg/PiI/Zt1CuPizm1D5e/ljSi5UGSCvdqO6UjaA+qz00sZ87b2xAEcLXaNMTDZIl07K
-l8PoilKmvWYLG2/yo8CaftaWnhye19l/M8p/Y5TTB78muP49o/z6a/d//8/viPL/+Iv/RArhpAJ8
-hGKoQ4oAV1+C5/9ElPv/XMNb2kIt3XXXC85/IYXMf66Z0bWAalN15/NZ/59QHvzTp0XfYCpTU+KP
-nPcAhc6mI71pz+kSIB7mWtfwzvZmib4oodkOp05Tk5Ea0B1TBxu2v72RtwvC/xrFAoROKgG0wLmE
-p4n7Fo1s1W9QDgE4HzVAtPVcPiWcPhG9hdobBeg/n4qDk7fn66vpDWXhl7MfpzbSbZhU022Ayydg
-yZnUnjTe2ChfGwUIEukKthc+01lsCuE1yzudenNup+YD2bzqOLTzEr333TlEbmz70F58iCRnK7mj
-FpQOHhTKGYdSD2rhjPS26BwHfk2g0KUb2EN8+vuY61f/LTXC9yLiXs9rSupM2/O4IKgtAbhMdeQC
-a/OEWyc9PH2Rc9z47huP98pQbE821/o1z0vn58tPZbaV3lQ4+22aEpdDGdTLDsc/HI3zqnxjTzyL
-Q9anoo2eFcX5tl4mzmYFCuna12rYrTLr8yOtSu7BdTAOQjoQXE20Mf1re/y3MohX5seL8VjDv19j
-FQTkxpWM19XG0h4qI261bS7xf3n316KnnLyIY65mB+dRflz5CzhmR5D2FKkMASjlKhqycXlC8y3e
-GOy1l/isv4LDo1O3OZv0gYD90OdKkGAxi2iUnfkxdUlaIZZQkTu/H6jER2MvpCeYdQZ+YX3Jv+UC
-gL3GNMBAATfK0d7QsWNus8GExc295v3r2UV2ROesS72e+vL5UJkGOslgqBSUkd3Fzg5rruSNCX+W
-g3+ehb+P8seO67Vdb/BADqjPNPWSvV8o8ZlYzL7EVFV87vzxy/snyO9Drt/0t3doaI5TaDPqRNXp
-ZTSYJazrfKGZEAXyp78Ptb6js52DoINMP5HN2hJ/tpxxE0y7BdviTQvV5bpoYF/jGGq9r+L6r3fI
-ZGcxA2kipnv5QLET23B0PQEuiWZNa27cXSYbd//3Z3ltqgPz5mBeT1vgMS9HoSM86/BnxvGqo0gf
-+mA/TqVbxb+qtk8/BexXwxuL67XNkFfHdkgDPIXRs8WFVJqbi0uMOlDv20O0e6S+/Y2+Xm/790d7
-7TNR3tVJsLnrrexsRnCbodfeYctIYzinU9X7kY2RwBsL6jxVyndCHbLW92FAcZCcVxBSzc/G0sHU
-Vli4Hfa1NYXOAsO9bdtkX0+rk7vr7GNas6mS0JS0EZK2ykXHzPm9z8sVF27dijVy1+nz8lMG8NCl
-lJwyRo39900Ncr8/ptZYvVXDMNZN/eUCWLW3xDpI0Rznj37/uU/81ABLhS1FWtAgbMqdEK31qZHd
-h8TVsFalyr0lAW+Q+qETlCoE0n0vHIwhOI6Qq94Ihf7cbrguGqzIlQykU8Z5+eSTIj7S5Cw2re5P
-1mZKgoomgWFKrAj1ubmiwqV7248DhNu/v/NXRzZXpBkBLu/97B6pZBssyWoTM6WGjMakxHFXxBp1
-uWSjgscGhH709xH/nNU8628jni1YZVozLXOcTbOF6S9QehzNaHx891xiFD4wL86linq+LfgeFlxE
-lLQyK7+j64LmGmkD3Pz7s/y5+TAKZD0dHiO0xPPEZ93AcOo9pLxFEri3DR0v2D6jsNLHMv82ZN2y
-+/t4r30tpux654BryWH7cp4g117oLeBYouBm0ygnfO3CjHXQ337VfwDVHAw48hIFvvGcb43rvxzX
-Hamui8YW+JvW3UUOZxdv0nH5QJtpdzEiI4KBnRtvbH+vvdw12oTtRwAPtuXloDPeGQIlCC83M5wv
-9BDN49YMJKzpOqBhLUV/+PD31/vnzk6hAeEhqXkia4hKL0ccaResnT4B/B1DgXSF6CKUh9jK1PP7
-w05CaSIY6g2o89C6vByqoM2ymFybDMM04lZTLONuHpy3gulX1hqyiTVDRJkGKcH5vpKYbj+TLKcz
-Ck5yaGVe4dJt0GFY8fc398q3ejHQ2daN83DT2JhlbjSvnehdox5d5N6NLgoHPfpbqsb15bzcvtd7
-NQI/ZgelrtVQ7PdQiXWclWm6AH+Wen9Kfa3aN3WlQ/Z3/G3ruRI7P03D01gBHH//UiBnbpt0vbor
-VfPsw3lA4pcC66PNog3YIQnHxL/FHEPAJuII6BDn5DaN35IxvDIzV1ASJwRhAPPGfPnE3EncwTIm
-4lHw6pvWCuiMM3K8wnWAHH//lK+s9eD5rgw6F+XEee7LBwvQ20lLQJU28sIdxXisINKcMqzdDkPs
-0W1biv7dwDrSfj5NCyaBCJ1M56WWLhXmMmDTvrFG10yQaGT+isHoT05jjR/ntR+r9oMeOoTM3vii
-fyySZ+YzInjDNjkyzpcijVN1KwQ7SkI32MbUa2tnGp58N2IIOSDJTSouVOX+2Fu6GAuPaWHOLtlg
-rBAOkJ5cccuD1Xr1G0XT156I3YXwEzAxA56tD1BlJCvbAYILjU6k8UdteQLTX77VnfHHrOTNrRVn
-PhmZAW6AL2dlhke6P+ljy6yE9dq3yr7Qy7E6inns3zj5XhsKXQFkb7KlHLRnQw0TtfymqhhKJFSq
-JATpdlGgRHR1+Pv8f+3lEQuxBAwcl43zM1ZUfopDZksi2tYz6trEuumUiu27R1mPGZYXLw/I6xqh
-/nbbwxM3DeCtsYWtpnW626dYR+Cj9P5RVn0j027VQARn2waryPCTMkZ5UOCAS+ZT+yZHnF/eWEGv
-fBwkB6tamEIO58z6z397GM+sMBNJihXyMsa7oQAbUVgyD0mHvCG5fuXjvBjpLCaoGyXiReUthH75
-mXKBta2x+Hljrv1xmFGFJTXJA4F1pPvn7K0ZmDZUDXW9jeE2+qXIZ3FXWVNzDBLHXjbNNM/7v3+m
-8y5FkoaMiGsmMi6UhggqX77ARZR5iUqk2dhJwAsURhpBVwQQHUggJKkTp4d6lskWU8RgT0+j+UtT
-2ql36naXWlNx+/ef89pL5kOu3XTkZhGPvvw1qe6khj8zawovffJGTcP22pVv5PleGwQsu7lqIMic
-nr9kABELUmIHvmzWYVqpJiQ7UU9b9zsFcs/vlmrc2uVEQxC9qS+fJrYL5PGKyVnnuPSgJXNXRN6O
-1oNDPWhvwfdfeyw07EwehMWU5872qXHuUW7Kpt14gxNfFFKJY8sOGr3/CwHIo37qcmbBVn75TF7p
-dZZK2A3xPukumzGttrODjdq7R1kpyqg1uXKQyDl7cwX+OUWQIUxRk5d+LKfAxvvaSd+bJkLmRvGE
-PNRaSyGJ+PJZ/EVqg7bO/SKzqg+Vwp24xV7kjf32zyzHOgytZ6sfAjXh55TAb3tU5S4NDlkeerox
-zi415Vs7Q2AGNQHScnX50Z+c25ZWO+a6F1+Q6z65Qdu+cbb8EVvxI5CCWpQI1uaN8wvGInS8cRJ4
-GIsrTdiTc9rX1/bs6PLSGSccmucpKLNjJymav3EUvLKpcRMA1oobHvUJ5+zAoW3fAXsTQMADBlyE
-qQ54ZGqzS8vGEGXsY/7z/bOH/hTyz8gxeOnnK8H05mrR2UXsNMXSqLfwa6+wY/77KH8ePeBKkZ7T
-6LMqt86vAuSbk7nz+KxummEv4XvNUdWLd7RjbNP/PtSfb5ChMB2mLsyIaDNfTlT2SlfvHN5gUziZ
-FqkG/hgwrNS4D3rL+ZHSVh2/8XRroPbiokMvHCuPUI4OGVbg2TtMC+HMicDdFdaVFsFqdD6LcVq+
-idErI8OozW+kQOaLFgPYQ9WZ/dPfn/jP6Urln9sLOgZa1Kg+vnximMYw9yY8NHQaFqLS9X7QW/zk
-1CSnBOSnzWi/FVH+uX2uI3JhpZJGhvX8zt9PWZ6ZhgB2g6vU3hLjeGCpvCWVfGXSgCoiliQAI3WD
-e/SLeIWWPq+osVOkESMWOwdgxhAGsZF+QqRkvcXCZiqefUUSa6vynBIxAQ+qjbPXaEiawLABRJRZ
-2aV2GNmuf2qpodXhqPL+btbjwNjMgamCrZp91V7C+GutPaG9yDZUyRoRLRqWrfz9ghIa9yrzkrqf
-JkOiV4f2L7zZ5TGwlrLYTzG1ztPk9062860eh/WVvgcDJC9i68SkVskpnqa+PNK8ajSRB7s5PSQY
-tDmHtZA07nsRjPV1apd9i2VfXGBxXOQYWGEs1vngEGPjseXwKcKupH8l7KeVCd94K+2mcOGw3Tq4
-l00bz8dD+KbXK6OM/CZJDFCQcAfjC3+Kocv4VTGrPdCWHFoEhsk/sCmFhACsj1hHNzJjOdnT8EwG
-kbBXBF8zDrkZOzLy+mI4TnPvZ5Gdm0ByEuzRwF/2CcwhdEpcDRQ57Wxr+E3XbWFo5t2hxBR2hvPr
-JKCq4aOhADLNJdhM40gMgPZFr08aZr42PwELhD1IrNnFUcrKq7CBYPcTCKH1OC8VHbFjSyQX2Wll
-6BtIB8O0dvhP1Z7SmMknXBryIACbYJvOkHpliJVuoO8kSUEEkTLIktPozZ5DDDuBGNKnJZ52fIEK
-JqKOjWuIB2zi78CzwFYrpsXF5h7mTrWh6IAkxWTtN9tRNpkPR6bqFPgiaEjAjJZnsNHyDDmyn4FH
-haN6eUw0uiBWOh5QpJIu8xVnGMseFVlX5zCu+r4M/b4hIBIrW2kOcG3b4uAJcslojAn8UpoMMuLy
-DJUJ9wF1CXKGt9PjdQm4qVaAIANcjh6ylexUTfYA9iQvF7XLnuFPWVnHXwfgbjbe5IAV8V5bUVEp
-nWunPI/rX55Q3b1amVIp1LwZ6t6KmrKM2qvDqgi8bTEKQ2yHlUtldRliT1Ky5ZPrKG7tTW0GH5fC
-aD4WpZ9ae9VZS4VEfqjKEDLTCr/i2OcStzKxlmc81hJ76SN0UqBZcoSfpfy8/AJSz7msV7pW9Qza
-Sp+hW+BZZ64AK4pLKGO6tsmuYiZmxMC6TIW/Y9EEnorKleZViho3SOzOPKS2K+/L8izQX0At8xvw
-HGrcg7YGDjY8g8LagDbqbbPIzt04zzAxCXW8hy0FY2xuk/SXs6zgMcrl82X8jCPr0jn3wg4KDiZt
-1lQVO2ell0EbBMuI9ThQs2pY6j3NZnV6J5+xZ17emxlUzhWHRp3W+pUFFekq+xmYpjViBGKGLwYW
-3PbY3+L8B16Ny4954zqJeMgsicZsfEaxLTDr2q1IVkSb84xr03MNdBsrpbya21bHn3plu9XPmLdM
-10C+aTn0t9mq9Z8FjG9gpUvXdV/APgXzVyJxp7pI43xIdnOF4PWE27hoLzWnCMpbs8hKcWnkjRNf
-C5s+kMtEH9ovi22o9HNSByL+LgckrnemAFe44wv53o3w2DoPdtwWKKv1enJPQ6Z1oIFYJ05U6jgo
-X9TSNPG9LGJnPHVN4EwR7AloTDH0WCLqsnAT48ihM3f7DuNSd1cIL433Qqvin7kVTzrw8CGNI93q
-+mrnwZ8EkoiDKlWiJJuDb6NRGxplfk7s5BAbGB3c0N9h2ictJ1rfBbGdu9t5xhT4GMQwBK9BnlXu
-l3UiWD8zW8466KGmw4IWeeKkzzcFAWL9UEH5zO9qtYjlxAlgk+O357gsPseJP+g1VqQ9bjg4uXC4
-IWx0OuyuD3MztfEM69PPu180tidgxOAvWxfZXCq+/KRn7JzCKfICW3Gf9ofGl5hP485rxbsJI7Ek
-1PGW6qJEWjxUY9ol2QM76WbzQx93bX0BamEM2CKb1r35F1mJp2UjJlgxg41Y2WmYQ6c1sW0+NA92
-EczmTlmFWj4XY5IA12zx09zq5PVINKZJMX5wDW8072ZuH6a9oU/T9C+7ghafHV3I/hR2dlB1V4vf
-U/SVRaXN29bPYtzIeXP4PXNl+pRY3nyle1N7Z8UGzV+tRbvApql69zuUZCKXKXZIocIPwRoMD6j4
-cbGWfsKqvmSpYlSuNgTyLWRbqZv1JVpYaayWVD4+jo6hXeP54mhR4Y8046jM1FZCWjo9pJoxBNth
-vfpti7hMPpaayD+mpBd1XK2a/EvllXQxIlfvfs789RIaVUOajv7ylPdjx0nBXUQgvLIRgX8l0VJ2
-H5begykKnHfJQstrqf9yVo8OvptzcKXANwfHWjP826Y0EyzBUjmqzYgh+pUj6Z2AfJGySXttIf1T
-7OOzFqo+r3/YmL3jO13X4keOOfxVApmvj2QZj6DD5OLAupya6nNamy5c4Vg0X4DXj2LXlXlz12hO
-Zm1QhQL3KYOkvDY8NXucTE1ZoUFaerqQMiNeQi83K6yfhrH4iegkVWFe+nIipMNkNcx6qzSfnLLt
-zY2uEvExiGvMHkwtG2fcjjwvD3UCwnsuuzRDNqoy7wC5TcWuSKsMe+sgKcqtPZr9N9/CGnMjvWUG
-+diI5GnGKhnNORPrwl1U+2hz8YE7UqkkCIFHdI+Lb2ifcZQGd+IuSLY3MZ73P6QxWLeWKeYf2Jmm
-3+O4Ce7wfLAeLZFkdjilifbLGqbxmqRG+W2Q8B430Geg2rULDBVlyeB7oJVZsueTZY923y7fOsxc
-T3aZG+imbL//ESxz853CD6YOtjJp1CPssVawd9aDf9R8cQHgN5j2unK8zyDYU2NbjsCiw7lvyMQU
-WQO7W1pTySQZ6sXc4s4wahszhiO7B/mVf8qmxrE3c9I43/rBGZNdnVtA7BoSf3aowe0BuDoKHWMH
-Il8voraVfXQAUU4HXD3MFHd02oiwsE0K97JaFKVZsu/BxBHfA9YeEwcMHMXAUj5BlCtFuLK38czO
-lDsZkG1Nj48IPQYD3LzP26s4j1NzY6uikeEQx6YJ+BwZV2SDahwx/FHViFevR/Tj0lT+NYCocJFY
-zUJbnddDT1pMfXWVLxwr3ZjYrD8Jx5snaJfwNjc1paCd4wBFwEqnKkxcU/1ql9sl/9USGezBOnPl
-k5UbCU7MBBsHO4knkwUSTxflOE8PoHWDJgyMsr2ChetDHYFVDJ2mH91hZzW9zh0vWIqABsS+UWEq
-McwC9mKkeL9Sc3K2y1i1t04+6pscpiVE6iLJjXBytXzYVLOHhTO0P/d61HgxR8cDignm1AqS0DZy
-73FO0jWnqGtO+1Esunlokrxyjo1VzjF/rtkyKr3RWDYWNy65YW/hXOiXzC53HHvaleli6h156dSf
-jIxL/D6fXCICH1H9xjKBE24gQiePaSI8I7IKLyi2LFI8tseAczdyvYwgKK5r7yIocw9aPIlFGiz1
-dC7DHEHj18GW+bSTQWfCCenThepPUBc/lSMkFvdjntxYs+59tTUDCzHEpfEUuRTFvywYrbahXjv6
-sMNBPbO4BRTDR4sWri+TmQYEHLiC31UQSGqIj5g0wvgdpRNCBMcTO3A6gfvT3Dmf0zn16O22cuey
-8+vipo4RD4apJZPbxUuIflvc9C5mGfODZJnk2LcPQ/oAqCYwI7exkxlnbDtAPZvO2bUSpvk0Z/CA
-cHga5N2gWwnbtx/kWVjHUi/hYxv2fWfq6on+mBiqoSeBdZM7B4KKOVxpbDDbYE+drYlEiikD/XL2
-Xcykv+eGBYdfEpymmxpUDzc2m17ZcBljuIz+WCY/6jpeyZ+pb7a7hg8U7Gz8iUBxSjC9EW+yuuVy
-LL4XOtckjKBpmdyp1u37Q+CVQDTxdAIO2Y65RcTSdaXaKVVTonB7Zd6CD024PgDI9nce5rdHHmv4
-hQkgvaELOArV5IO3WQav+anX+vLN7z1gDkj27DmyUs/tozZvsYUnAc1qNFE2cIzPdrIFmx7cGMq2
-PpnDwuZApJHZEbJJ51OnfGKQAVOpCKpmfKOrPmMXjpvqEAxdVX4wYOx34dhK7WNbcIvdgAzOjqoM
-/ORQKJd7Z65a2L9zGutuaPmFcYot1IqbarHXqeEP7vWUzt693woL+zico39KPZ/uxmYIHsDPpiml
-ml5e5GkJA1TVtndnZu38yy1yOH7FELs3ktj9g5rmgESUyXIdMfJOQ5270D04PtRpBcWAmzlPaxFm
-s9b8XNJ+uZW4L/SbBCTqA1rbwQoDs5B3tCNOTyZmUzD0iVqO/hJ3/okTUPkbDiIT8CyXxmaPtzbH
-1gLG1wyXoehh/dUxZq909zef8qXIxSHBmIZ10CJB3ZhlkMPJzjLpR60xxl9iNYvbxAY6jhZb1ipS
-CHPp+l0wbA19t6vh6QCWKEOLXD5W0yyVhPmZz7uyS4MnM6gzbVOlyhoOc5oFl8jA2vRbCfvR3S12
-uyYJMCu4RaSMyqjoM2iYZOtAzHaD3k1bX5B/3iKvCZyRYj6Vj0CFPlV+uYxAwWWtVwh3CsLxo4gx
-CCUczqcP2jKO3WEuZNztLc11xB3xdKBT5Bxyd4dK1Da3ZawjZV9KmCgVJiTqYZzGguxAgIYmVHpK
-6nPurSEHxmjo8sh1vC3pF3bkp66ZzGzLZLPisIxp3AuBw3HZwgILnxa9MFxtszQJ4Eb805M8Iu3v
-JJd12zRiB3y9di8q3+YoRRXrjJdm61VmCFIO3qhNm1qydxpNPIwaNGxiBT/g+oKNwSNBdvEJTKNt
-bjKbRYyFWkdoSKtG9dmdpZdGIu9VuUnYvzm344IIWdGND90c0ePTZJldEXopui9WQe1/dotkKaMV
-ozuGRpnO9kWwjO0CdNuG4iV8VZq7MfekCJ2gin/geT3kYWlPnhNSwoiPi5dhu4PzWt5dGNNaQwQI
-ljsht2/LCen2TL/05qiRt8goFHC2cJT7UVKXuVmCzu6NxfLBorXAxrEY0ZplKvr7gvtFfXxOH/53
-58nvnSfohEib/vvOkw9fh+Yf+67p++YfP5p/3I3lizaUf/35f7ShOPo/MaNF3EU/KUUXyFK/t6Gs
-tSvSsNA50Gmug/6Xs7X3T5KzHGFoCOmo8NZaWt+MQ/q//odm2nS2gIoi76/TarcWmv/3/3whju/P
-/vcLZuBzXfq3jDT4PtKltKFg/gS5DHzHy9RpbGEhEVtIBbkIOBMBgG7d9zgEjzsjn/UOwE03/pST
-UF+IiPRQ92tzwA9FGMfWnOaw8WrjzrbUHJlJpw71lF9oym4fDHw9viedX1wX5Th8HEYT91+UbEdQ
-9tNaGk/lTWpzX9iwRwM9oiwVKU+H6JzF0nhStitvg1ZOd3Ne1Q9ksNIdOw5eUUVBTybUhE2d0tbI
-ZdzW9xa9Xfe2WXDhw2Sm301jz56oe0lhhNzmvQezHro8rL1luBzHrHgkSU+GVlb5cshS0fygmMXv
-Fq33mGmDF1GduG2CgEPfXur5k4/e9L6XWfDRXub61Lh4plCPceCdTYZ2YbOxEi0D/G+iuE/ccMKg
-41uRjP6eNKF24RbKvhIVjRwEatYjEtZ8PCaLAQrCHoTmfunFOIMcC6xQB+wbTvW8ZkIF1xSb+tWV
-LYv5U9VL837UXKKXZmAr0OMZCvKUT7wxf1qSH/DLE4v9bG4ucQKwuICXI/DlHCksh6G1cqUhFW2T
-ppo/6dqU/GiK9QGZKmO1B4go7qbBx2TBnudvU0YuYYebBenqNLCXi2ny4Tsng2MkJGoVzTcwIwAl
-FzTyR03K+yAvXGOJZBZU1ocg3/qZkfyILTyAQoWFttr2bTJkIRYU7RDqmj2dptYA4yxT6zHJVHzl
-T4lqwhVmc01TJ81zksMUhm/Z4x464hTCh0wQ87DjESC1D4ry+yaHCkvtDd/z64GOKrktMf88Kdtp
-k5AWsD4qaqO5icfE/T7hGAII2BZwu2cjHPrqe6aVV2CUlIp8vzEOYBbImiW2Xh1R9gZXfmmln0fT
-G/bN7Cf3XC2xXB+SYsGEpDO80NHidgTOMMZHsNbWx85wmks3a72bNO/SY23OPzU75kJZTvnD7JOC
-BYVFBG1VwWMrbPc+ngx7ArtiifueUAu/Xq18yCbbSo8+CfkfTSwmMku2UV+6ptCeglkF2kEvXdhg
-/VDXSInrpdo2ie1/aGomKpdkZeA8Yedfp3Qs/avGmfiacpGct9Y4frGwdLhKsxLdbMIVdglHel/T
-bWEQ2VIkc0HFCzu+IkVDor4EMl5uYWn7yUl38HzeDL2d5zuv8HPv1NvS3/vu6jykj0Y/X+j0FEGL
-1gffO06us2zp0+12rq+RlZiDeW8E6TB/iN2hnu+mfED1xpRIw4Dk/DV0z4GfmDu4Hc1VPZ6WrDG3
-ee3kXI3tPNkupZmzlDnivnbLXMLsJhomehaGPd+0lWX/AFMNWXwolyBCFG3cUxHy9zln7X5ZnA0x
-qx8iuev5vziZs6X+kZJ8KA1vM0HArfj3Jb75Scfx4gY2U7t13PiXM3lu+tDgYp5SkZPIxZl9cXIN
-9K4ytkLa1lMz1OtimGMw5PAR/D2nBusSrwUnuZ3q1Z3J97J+2k5mYz02k89OQaUqm6PEZJmSkcsz
-N4pnv8DpBPVYQXauSH74JAj9g0Pzr79bHJmbUVEUWoFxGEf8ESgdMjNX1dVw5WbNjT4sfghq/YtW
-BqfGEuq2WDwyqG3/VCex+ErzUHBKGuwdQmt2D2tvgL6RjoiLWzMQ3l2X5tghFCvqxfdr+7Yzg53n
-KvKRbfZLBFyedU0V3+lbI8qjM2QfcBOsv4xKn0jeVTqM/IKM/0JNqve3E9Vb47LQUoz3ejaLbF8N
-fRFz7fWDZdqk47i4Ya03JddU8E3UG9wsSKNAddS24tkhcBaJ9yFz28GMhnaZvS33dI/ClCII9jPT
-3Q+zLuvv/HMdr43Ctj/rFk4lCTY4h6krdwZlIOQcrc+FJiPP4YqiScI0dQqc1UoluDGzSV06CTOG
-BIHUD63yhEYpx2jbHdHpLhAaZODM0XRyurIZn6ZFtMGh0AHLbQohvPkj7uQ73RoPqVzszVAHcygn
-46dK/NB1510Nsnbe947dOvuRuMzbL/nXrlk+g5qfc36XZqljTPL1ikugVp+S2Rd7UbTmvTEZRRWS
-DtfcvZgHrtVy6vvqaLZaHBrDWh0sGvdycoes2Vioie6VavWWJtKp2eFexoqy+iuSUkURAkj3Q1/k
-3XgRayJJkLFjrrMQGEIFiCnGYmkGnfaqzDPO5BR9nHnFvbnQ96u93qms7NnYjVNl4WvsDgHaUdu8
-TmxVXowOt/GtyLrK2qrSc4vQaAdATjbkpLBLU3XbCG352WFos8dPIb3XMrdZTnIce3fvE8Zeuvok
-fgqdEakJT+63vhhT6xineHZ9gL9thCU6yvRa+JQFPzZeMy9hlnatHtZNlTW7rOrkrRjK2TomboeE
-NctFnbGte63C00QZ3zSqMmJflNlqPFUsOla6iWT/ncpU3y1Fm9z2Tu4vNxPVFm6VjmzH0E9FfEiq
-PPhGo2zM4u3aLtejrhVJd0gyvHcv29ZpSetpaksB0wq9YJhBNorVNaDEHvxQEIf32hZWhdV/R/xY
-yws/H9g829pL7KinLSSj4Ehhx+wQPto4p/VRM3t23H/mcPEA6DeuMX+kYpph4Y6svY0SrSI0aydv
-Nklm4KfGK+7j4X60gp6MSC73XGtEFVmd41LNTPMhjSbqatN1UnVZsRlc1V7IbpAVx6rClgjcVBuH
-i2bYEjvwKtg1DfbSkaJoyZk5t662y7OhCy7bpca8dazSoItwnJl31Inww8L+Sm3gFBQcTDE5U5Cw
-Q3vZ5G52E0gebDtTrl4IVSzUzGjGk0chc0QAglQKSjj+rR1Gh4HCslUkJWYVgxAf49Eshn2ger25
-nDHtye+tWGjiFAxTdtAKDjmqiEa8SbCooZ/OxybtGJQxYVNDoeCT7krnuxiMeQwLm5BiW2OlyC1U
-ZIG9RRTXUjg2DGzdZXwkg6YeKsN2DIJSRVyCYkJizQsV2NtPVuVjHKA3LLA0yEFyeiOdYdjM1O2V
-Xqvyk0TRnHO5RFB1oNUcemHiY85GXZZKZp5PEeZMxloLj91TIeFmAapwCncra/JfEQlm8v9dW7b6
-1krnKcMHR20bIftqA4KadDGFcTBvtP2eqHPqh25mt0O6qJJLNij1lCfEw/su1dWpRxjsRsxoSpG+
-+O47+bHFr3HOOVQaVzHxnV1suXt9qO5M9hlNQtjJnZtkMD+j4vnRTemh07Wo8sxLXfmnPGuzTdd7
-eD3V5d7L5RMi3aOopmicy69u0z/4tfug7P7OcqwYEF5DE4KzRFpJno3mYRWijw01Ml2mxMxDcluW
-6taR2SUc350/fh+67ClV3vfeUKeOAu3R6Xw2YI3eocuyNTpxVA2icSmXCPG2SK+HqQt0ilL0OH5y
-AF81pIZDvelvZ2pKTjTI8ktRZcyKZNQiZ2J2FnjbbBYvkG60GAgsyd8MqePekMzKcHMZ3SQkZ47p
-S9vgcPZJN5R7LegusKOad5we6abgb6ppQL6lcQHI70GBf6vyRN3lXjr8kiMexyenzc0knHoNfC5i
-9//H3nlst41ma/te/jm8kMPgnyAxiaSoLE2wZNlCzhlXfx6oXKdtVR979byrq9qURRLAl/feb3jU
-Z2t8q9RWq51oWpKRWh9zzx557mg7DmlGcU4pU3FrSTgkOuPSxIXbdcr0qJKNNrxoKNXUzaRpuep4
-5thPzXSS97M1C8m2Rux4pOaLhBXlBXyzN4ZQeLqU7NtFq+FFqAuCFoiG9B3GQ5yh/Zn9o3MxmQ5f
-5TIKTHpJIc6q6zAPj2BVRMxp9DmaUcSyegP/bVH8lqQKQpRNIEnRfZdk6a4vqka4knIJZbd6Qmt6
-8998QhO/db8kBDSa+3f5hOvvTfGaf+3fyn/zsR95BNn6ApBYBWxkrJo+H14YP+QsVOkLMmprFoFj
-FZ4KOgH8jzwCyQfMqeHrEtgj+szLf6URrC84PhD0YyxDeoKwX/9P0ggfgPB/ZRFAz4ESN8hLKsgW
-AJb9nEVYiP0LQMaXg/9yDj17t7F3/tnf2b5/9G/4Z2dveGV7nhfazn67f9+yEdvv7na7fR/ty+0f
-UOWfxBb/eT/0wM8AdhXeKSqT0sV9cu/8je053tb9qZOu/3q2nzMnH/jK3z3yJ8xZWrJmsUlf3OP2
-aD/5rj/Y9s5+3vj2je3bNtd0t47rHhz34F8c2zu4f7iDTzC0fz7kJ1ZInjStinHF5eifX3b+nU/7
-Oq/Odu/c/uFKpD9+Qbz941Kf1YlaUqvBwMMe6eEDT7f26/o//jy/+Metez7au+PL0X85nmvb9Y/H
-lxfuyL7a7Oyb3c1mt9lsvM3myj55W2fvHLaMhOerK2fr2PaV7Zy23LW7pcG2rnM5OLZjb739xTkc
-XIfhsv191/1pdJifGKtd22Ryx+jw3cvT13Non23v+eSI9p+a7YN3/5sx8lm0Mh0MQIn00ME9uq57
-PDMljsyKjwFp+7V9ps++MitsGuy4/oY3MmH8G5u/2vHLdRwxnphO9snmV7xaB/Nutznx5/aWtnT3
-zuVIuzHfjv7a+67rnBzf33m8kZ/3e8dZx6B/ZIyc/bVBI3tLj/EZ+st36ZEDb6T1n47ntRPOLp/5
-fZP/cQB9QiubYVAKBi3BJXlG7s7eHN3dR1PYPAJ3xb/OHzoAjac/jFv113VgMXANggh98Z9ozuPt
-1lkbgRfu2XUOu92RQffCwN3xn8sU3m08r7Z56W9p0qO79V9s333yN77/4u7OZ7qDNe18E9r2Iyuc
-TyvST96eCfFk3zh7+2M07Ta78+7m+y60v9+sX/r17vwS23eL/TW0dwy33c3N+YYfv39npfRtJsHp
-lknLn5ftrXe7fadjt9tb++5mt5tsO7Q3zJrHq9Pp8bTfeve7/fbb7cXxNs7FcY+O59269uvV2oOM
-s1tmi+3t91csAvstze2y7nwsRDz5OwvS0WV2bbcOj7djxBycrXdiJHy88eGWv17n5617uDw9ue6t
-8+0P42ClmvxuRnzCXLc1jnrG2iEsIU80BAPBuXIYqM72wL06zp92gg/K9u+u+CnBjUcp1bv1iucd
-w9953+5imw5dBzoz7sxDMq/4kenC/9l7en790T37d+7d7uboPpV0+sZ+Onxd5w83fN7Ym7vrYV3h
-maY3DBrn1mOWeZXtnV4Te88427uubLsXVsIXy773Tuu8du2t67EV2Pt1NfjDDJPWRet3z/lpywsk
-0pdg1y9H9+Vut0792993nfphBfW7K3za8dj3JUHiCgcGzpkFZ90HDmvb8ZTrAsTQYiAxvpg5DLQD
-TcXwZtniR9qD320Zk0fX2/OSd/s7mn/Lb9k/eM1McJhTLvs1X8nXr2/xSz6/u6PzWCyYex8L4nrF
-ne+88BZuwXbohfXt/ODZ63Tacl3eyzdeb858PVOAr2Iq73beutoej08u+9Xuzqah+Ayb0ToCWTm5
-OT7P961f5lzxgiXiyB0xFTnV0K8P3n59q7ff0f+nj1WLp95uSh6errV9b8t4Xtf5dQ3n3jZ88sZ5
-5VuZdM7+tE7ttZloqPXTDIycFYfucvjr33fZ2uX/6jCY1JSeZMiVFn5x8FQ/iyXGKpAty5qxAscS
-9hQuQ+CQzRkOQqQNnpkHFOORKP3DRdcl9R8XXVWR4Nmt7OZPK31ilh1Is4kaPhY1l7RaMkxPZ/MP
-V/mE+P/r0TjSQrqHEMbBk7v4if2DZVkIYphHi8xRGjEAFFbrjBnjVlEryj9c7N88koSmJSUNHe0C
-uLG/XoxccGBA9YlswsnRCYo82JRAXf3f99a/eaRfrvKJVdCUpSzQhziiRgFPNFbmDZxFxE6nLvjP
-iGBr6xErIGG/speIAT5dqu+lSG8CSimI/GibEZMvu+4X408P9EFb+3UsQHJB7xxaG7VP8im/NtyC
-9ScCMSAc5VrPQ1eOsHmzK3kRHjMzLB6EVT/LicBECD4C2MOxkwcZW786EFG+77L5wcS4CRfaVEii
-3az02utMrQyeVYA5MZD8HihoWOhDh0gApud2iH3ttJmWaUxAMUtU6EiyJPmFmrxcOEYxo5kAPQ5r
-GlMA6+hm1soKFXEanpwWuOxi95IMOsIEnfa+lGNfeHnV5NtZmsTRa/QUZZA+QCN2Y2Vy+zCiUxrt
-ZZkSBfUUxt6E1u+30iysBmxhEM029ZlOwWo674EhYYEq2TIs79nuxLY4iyhgPCitkpfHSFjIzi/R
-Sl6LSB1jgK1F8+iT/BxJL1PbJDevhyQMYXmSkVOtAi0LoQGMZTfxQpUtVub8Hi9MLM9zNTILB38L
-EnEo28dwN4QmazDqrq2nIcrq57IxwP/Dgy0XO4gVkA0ISVSWJ1LtO06pMMpO0lU1JtmRIiEPmppR
-5CpZan1bxJ5MalmVWuEUkEpzG3BS22yxfwKyHgRLnh5rsPr43QrzoPlG3SQXJDclanmlqL/reiW9
-50mtUX41jNk6rlRn1Zt7GQaWYFXWqUMLTNlmZQy2p4JiCDUCIe9zVoWjSbo0V18LOaxuW0POng1c
-YUnVaoigGeSRerduqFDZgy4mx1lSM91TcRpp74e8jEJfLyhuOp05paOTTFr9XnTDAFKzs8h+S7Ja
-xEgkLcttkw6T7nTCegck2yOsYCdVoHKxKJTJ5Tp6SanjnCQy0aO7lKlauGIo0SxIpA2Ch8hzJ/mK
-NWbPfT/IYGQjqz0O4CepFlIHzmxAZZZLsY8CBcILoWdl6D9s82pIHwFTa7Gb012L05QAwR0sESF1
-rAIAtU1XWbd5W1aNP5sLFuUNlHOyUAz473CvzCNZKrCvc2FOs52mQNydbOy6dNtG6fRcd0Mn4Y9u
-5VezUMGqQYrKeFdJhYMurSllnVQNi9cddfQ+cwIpGy4z68hbJpFAQ8Y6Hjt83Lr8Bmxjk95NA2ME
-gtMk3E9o8qAVXg612yymcMEYsCg8QVH7Pa4FeeGbglmtGMCum5yaWTSvsOjkoYxry3RhNcnMRRG7
-EGza9eCoALDE4CMP58Sp8FJFe1fAc8OOVLU0vaZBE2wrdUl7QUfM7FEi64uLSFUBjJtUDGQ0W6Nt
-rnql01Z/47wUqbBJSuQ3nTKPNqlqSwSRb7QA6WWrug3M3HpMxFh+kzA2XdxWBOZEdbEvTs04Auhq
-6rHIHFGeVr2MoNC9OrX6xsecM7vG8plqmqgUab3FkUR+qcvATN25zqfoNBVLcdWA/WDeD714UywC
-Sy1Q1ITMv55r9x1CBBZbVtbjKjoZxX0rgtR301rF5rlOBIhHsVk0mVv2K7B/ZE3B1kBJsxMqs83o
-VlPU1247qXGHV3cmA+yaSHhjD9+Ez0AO62e8WvPFXd1MIy8M51EDI15C9oIwG33FLGma7Ept+pwy
-fhzcAfhW7TbP6YmlWowViVRR32rNUY/cUMHCwl4SQ5rJ3pdh6+tVEe4jOv5droKOItOsQ3ATl+kO
-9oj+bWr74AGBE6vbhTMKimBe4/DOGhRywKWI5p4xwhfH4Fn4Vuvh8EoONpvZ0UXlVkUpqLaLxorf
-aghgkL2VULjHAil+jVIQgp4GjeCYpQ3AxlYKchDKQ4Xah0ZB9N6YzAhbAVNtKZTrYQxpJOmfA9Yp
-gMLhCAq+Uca7Lu/n3J2WrrqJjELBqBr/TFtXMyBtNRjn0zCgs+GM7CAa0PPGpJqdRXiw1IAJ/Sho
-BrhoVWFhaCWZeuQMtRXct7MQzJ6UpOZ3NdPy2yrWpczOAKwkDHn4AJu4rsZtI1Br2TJ/2LTiXg1O
-sVXJKD4XLUUoJZhADasWhfOeWb5Lw1S7F0QQjX4HDRL0baUW+5XRirMPhNPHIqSNaPe6P4VJqdc7
-OIPznYkr99qapTpDNNQT3DmsKtFpKNUUPeqJqnYEPXiYU6V+aqNhdRzTpxK/8KqNMTxPUtTjYA2i
-+xCadXBQcFOqqSDkVceOJk4qYBtB3WlKWCuuAvnOdBHsltTNYuF+7uSijneuYGqh4esUJNBalA2y
-fjiIBKcVOHKoWDNFO677JnBxUOhfAeCrT600otCUVKDhbE3W09exyanEKZEUPbYit+bEOIBvlqHU
-YntY6vabEC8ZCloNMBB3SIqehSatutEZKshTjgUqP7XFvuf5xjZk/tSoBORuLRjhGwuPJu/EVJy9
-vK8AV4tFBBcrSBDWCAdgeLY4Vavp99BmN5SLcChPdYabE8+ZGrhzzkrjiAD4JrdUC7zERwT9KOLL
-SZD6gRH3N0JksUejXpQDIY4X3dpIUh1PHMkrLfOgxzShj79yRg04FlgWBJ1HcJdWju6MdgaoUZWt
-9Y7L/NRf8VXRHR4xk+wYnVD2xwTY1LnBIxi3IKvRcByY5bLbhEieZO6Sa83kUbor6XNs7wWaZeDM
-R1ZYlEGRN7Cq5yEvdCZ8q8vbVpPb9iYsGvMsdThx2UkWZleTJZWxLaNOfjtPwDZ8CEDSfcBAknzc
-5KvJnoJHC1k5+COFwkM2cpG+GVVuKO5ULtH9HMb5PQyU9AwuTLnEylJtGLDDxopgdeJhFrE/pIvy
-vZLXLu8Qw7iYAid+O5MUYXJCOYhvi3ZIeweqpS5y/maoVEFsZu4sRcELOIdh8fVGSPZgdofOAQXZ
-ZV6uUla28wppBycB7avZOa6K4CQTKtVQvkSzcot45qQ0R3lI+TY1mqfGSNkzYYYyzAwmn+RA2tVO
-vZbFk7e0jDyb04fyHMxVfdJ7LThPc8moa/O170XZxJ1lHr+XlTnezaBxTacShlDEvAmosBMy6q8S
-s8le1F5Mv/UpUHVXwFL7WtSbWQeoAAPLGUULVPG49PHwhxzBP+IYWs1CNh/koAkL/DNNOq8p/+eR
-8WTFqPvUCoehSQcm8B+GMetFVqkMLBTAFYqf8y1KrAJbYfdhC7Q8pVa0vQLfAXpEE7NZf1zsv4jU
-nxCpaJKiUECA+39jUp3vn+XQ//dDPypIivFF1qCtU/RBsgLhlH8hUakgqavmiEgkhjkw2tP/W0ES
-5C+r/C/JAyj8yPivAd7fQFTjCyhUvg35MrqbMFz+TypIqON8zht86PMgigY0hzD7s40c69tAcThB
-+KEbhNE1+iwn2FrX9/ljqU/WVd+UVhRhGMvT15KT51cCz/R1MBo0RpuPfUMrC+1JWTeTOUEEg+N5
-Wy+OORjzt1Acekrzkw4arobcdEkIuogZMSWGpWeV6nuH3+hljqw0O0xBkIhIA83wYdPaDO4DGEwj
-QAdhgAyhmc11Cvy+t6NFVsCcd4NUsieMIpABoGsnKYizZ4LUY6PrZroV0VMObQRBIHmOehGYdrPM
-w/2gG4LmSVCprqkYDyDpBjj9S4LLj5tAssYHdEZ0ygUlXu4bqc1mp6zG+IXwNq9dRYeMIYg6qE4Z
-njtgdito4EsOYnfoKNcr9qJ1YUzoIMNx16dWHkA7BN2NGBnCq4xCWmgPUjI2Lk1XvfZt215XUwX3
-zAAclm2mZAlTd8TK6KjAR4ep0Fo4b+v10B8kJcg0X0zz7m6ErhohU4CGs409sLobYuCjXiuJyWK3
-hJX6PtdXXjeAluQdnp40OpWmia2rg8rZo3FgWpuwDZK7LuiMEzg7pESr2Mxf82DKWJ1Fqa5dGAnj
-M/bpzWijahCk21jPkyfgn5kJEMWoAx8tJyNwIimI3uqBiN6h8J4Wl8IQob94Sm9QNVdbtdZ9rR0j
-5TWBXPLUBzKxOiBC0GjgbVYsiqVkGUBTpVMUBy/5lCBukU9jqBlImMtqDPpAQt3mNTWWxThUih5o
-V4FGKgINf33MJyePlybd1pxKkfcTy7nd5bElLBBQ2eedQh2rxEfBt2t9qZLKclPCu9Q2K0zwMe3Y
-DDyEGUU8jmMiQzirhgoqwIJUqiCirjmymbMfhxPBoqvUelE52J1l8zVoCWO01RixKwfv3Q7uCpYA
-z0pazYUbSlY12+1YCMppMIdmdIQCcTy7JdRnBlR1lXKSzAuwxNT5Ro/Th7zlCDWpeynJuuxaD/Js
-vGNylQ/asIa6lSBm5WkIu0xxFtIB7JZR79TGKF6Eli3NteRAQmM4gEcRDVo/b6RBaqSHIoZJ6VdR
-SuquEgeod6DTxkuNZspLbgxi7JLZSywnDcwpe2oWy0w3KZH9jHgtDmi2loiYhhgcNl8I9WvQcElY
-JZtSxHALIY0sOhrlUFRPQSL1xxD1WwJoNZ8JZE2FEB60ae/kQp8f4Lj3IENGOOK0bAtSqBXm5DY1
-yuau5oh0iMtJfg5lZQ2ChqEVHaJZI9pKVto+hMiJoWzY1tKzFJeC7IPXm69YuCIU2olJRs+Kg+yN
-8ZfNbpwNyksC4O+pkbmeB8OkuBdKDS6jJmANBeJ8BitYxQuoExJG96WcpokHIDw7KohOaF4s6sJV
-M49B64XglB6GXIBwQ6RXLV4olxzjEbUttwlRWrrrInKYF2tEGIHlU2t6T2giaE9pvfokq+AdIZpi
-nPMYTqGqgjsKO47HCGwzeggY3+Oq4tyv15qeuPkcZBLjPe0Tn9z/whonDPXjCFoRiKVlYgjGOFWu
-xhLWGGibEekNYZy1FiqelKaQfGThjMxOqTtRWyqEJLpg2aIojbs5zsiaqWKlvAKuGwZXy8thOOTI
-tWYOWR7xoU0STkNArUTRzce+Old5RcQDokYFKFqE6QVUhDg4zLZmOZK0GJ+HOYUYE2jPjaSEEkke
-KKRwfqKu3VRFMbppHkiMJLMuRz9t0DawlazCui1oFj1zemVESAC9mjHdChGoM1tRu2ncCgiXntV+
-laycmAiXOKyT3qtVuT2j1tG8RmVKFI3PPXIcy2AKt5NRMqoKTUn3hmhdJYqaGcdUHqbtHHWJcDBm
-eSydhszZbfBxsMeB03ovspR1WlHi+A4SQ1rAT18DguKv4OAjUAinWs88PNYJIJoc9fQN+0ERwb0a
-SbKinN7fpBE0e3/4CEOKj5CEZYrwZPoIVaKPsEUUVwoBWzThjNAT2aScoCUHbyUCniBuw7flIwzK
-PkKiZY2Opo9AacZzC9ztGj6NgG9RKPkIq2B7EmL1H+GW+RF6Ld2Cisp/z3rNZ7QQoo6c2v/vk95N
-vJKPXotv31fy0alsuu+/wIb++vzfhz7lC9AfHWgQSXi21FWy6wdsSDHxuuGshb7+X7/hOPY3/YhP
-IVlI3hUhUE0krOeO/j716V8sdPDQdsXZgLwVR9P/5NT3a3leh2uoAFuCeLfqp3K8/CRMCASubbpW
-f+nJF1elcMGkIxcNv4TagZ4UGMkZ4NmQ/DWQfiFB/Qzd+VwW+7gq7QwmCrF/67MBltBrJEYn/WXq
-91ZkXuWDJ5fwD1nvluXpp865/qvU8fOliHc+H2tJw2BAZK7lD1pN/VSWlQec1jmQs2WX5Sw4tZjG
-ogdpKhG8wQqqQz3m2gbRxrz2xD7qDKdtNYQhonYqUahJw8g6W02l9g7khfjSpbJwPyZQfZwlDAn4
-kT4KHit4zUxfEFgqZzclG5126tLM0QWkIdypITW6wUOWHK0xK1nnaUIl92wOc/DYca4KnbSJrR0b
-fa/YEvmx55K1uN+Zhag/KaUsR05ZNHW0Ndls3ku0n5j+TTOaD1NUK7UDOMgU2VNiErJK2BRuoaIk
-awdqId2ppYhQgrXUk2DDHgLFrYqRELkDkjCLg4dKgaaI1JP8bzJdfV4JtWBva030JuSKXFPN8b4B
-XZqfBLkgAyqbwzyQyAgVfE9YBrE0yqW58lTUYigthQAcD/MwkHAVlURNnF5QZ20/pop2EJPJCG3w
-5JC/YRfJp1ijnmeXiXJC8hYUN4nSG7UKn9pQYB832qTJnFwrlJajNvRRzjwCkNoZPzMOC00TIBgQ
-dCR/hRHhC1LMCyG8QNVp8nDbCxs3N+fV71GcmnYjqfS7I/UDjM5SkvruZsHybYPacymc1Sgzvk3x
-mGLPIM5d7/cIoqt+k5hZeODYMQY7pQYCDx3NLJ+Aaiffa2QpJ0Qukkr3ZPxgcDMo0MQAzlkY0Spi
-NRwtq21KN+sFC4MkLW5ca4qj0ZfxkE/PnQlp1UEcXYT8S0WTSCYqiHikmvBjg85GVbtGrRXJXkBG
-AALOQoq5RuYmiotLPYwJ52tpiN6QbseGJunEisyQqEP7jdaDOXk2K92WTV+TjFuP7rBl+EY51jGo
-tOYuf+3CbrUM6BLjBAUruSuyarQ2MVvw3qrMhTanYjJynidoQOaD+MGU50LfUy8hrsA5EfH43giU
-nVqbyVrVEFuSgmtAEgGkXQtPhCkcaYlYaDWiFzjCwlWny0LiDupUZZsuXDqBXStqr+s1AMJncmhc
-OdOxuFnWEGlQ5u4GV9fwoZzm6M3S8v6qQ24itgUGWuwuHaYSTghm/Guv9RNBg04xEhUJHtCVshGw
-7tzIWukhQ5DzdstaFEeal3EitYYwkmN1naxtphYzJltqm/ECrby7yYhyIjvNugpFqil9qActehS0
-TnhDFlHoXLMep7chngBRo7RznaWG2cEuUHvZhkY/l7ZRr/3QZBjqUmiL1nsZwP6GXTj3dhPNluaF
-TTN1thah0r/LLfRNweCrpMhATU9PJbXj6x51os6HIiBfI9EtJVR++nYFk4dx5sp6333vm3a4XjhA
-yz5a/tZ3wyqpRZC5S2/RXjEneyjT9L5JWeLRPRCFZ6icaeUrGKzoHpU+mieKpZzseBa197EMd5Sp
-kaAZMGXMV3RdoEx4sAsttHE0ZX6PtThAhiLujlr34VO8LHhQE5kp1wQj42PBee9xyUSBauwU1MRB
-BoYDDjL2puKilSlFm66ajK/Uf6NgpcmNhzpQcfqOS6MKvFZJ4maHQAMH5JlM8RpPmKpwQOiGFEJs
-GD9kef+bvPopebVaPXC0+L8PNLffmzCufjnE/PjM34cY/cuaYEKKGouMD1jJz4cYWV3xzRbCxqhQ
-/YR9FqwvlBo43nCO4ZzBPk9W6+9DjCR9AZUty4APVo1rE2/UT5zp33Go/5FVVbgtmNqYdvJdqvzp
-EIPNtGXW08COQXhhW036jHDB809t8m/OEX+6xicEitpZS6Ih3c/pHCHzcG4jD4WbPzmDStqanP0V
-sKHjw8yJEcUV4DvaJ2AIquUgXdCwZIfNCsmlcl2i2KUXwreiNPOXvqEYYscYWD2z3etQOMURG+Bs
-krvZRXdSKpwgynthC9UIVEMyyxGq1nq/PMlmMye21mTpu2XV0nzDCaEmrNAlEZ7koJjIBdeZUTwn
-42KGuxCxscW1wrqsr8YUJSAYcRqSDTacvFraCBBpcTEyaxGcA2pnj9j1oqKEZgmHKUBArbUdI5FN
-nHvhZES6pu6dgIp7akuaAWOriTSFGrKSd1AAdYNwTlVWMASWcepbFTcWWqh4l0LrTjvtLjBwpraV
-BhSIjTpgKR9IBGkBQoC19E0MEwNJIQOJjQbexiURKcyvZYyqdnJD6hsHOS7hEZdr9LMQ/cIbDrWY
-YtkTC3ccZYYcPRvyIWsEJbTDZPclknCuZY3LTC4tGZ9Ka6QeV2OjdyuSttnJ2tRlZPsW64iJn147
-owSgi0SKme/IfEE3ykGVPMAVQilv0UwgFMXQQv6aoxAST4v8pGLNj1QGkSSqrBiAyFS+oo7W3Ukz
-GVa4pOJ027bCkm2Q4Ys4VRT6mnib8Xry8GSUCzsfmA2k94TopHHxzBmHlYMPCxExKhEW1ZLPWmMn
-8zyeKFGH45VitrmGdGYMtXwU+/SBFF9XOlFlhA/dDF0cdFXTc0DLVeVxQgYqtRGySm9lJBwfAgVd
-NFeZE3l0ofSUV7DDG0ZMpyx7pQuExyq3Msbr1KpkYFXRQlZyCAoqW12W4HmVLRd1XADRNKPasD1o
-uRZxFlcDlCelWcqcFs/625bM0GvYI/HnSAAGSG70g/pOzS4ISbxKsLawICoEGzxpaCLI1aI63vao
-zXRd3kVXGhgEOxBLEjtS05mXUTNbqExSrJ9mQ8adDTppqB4CBJFIt7FFJgCGhP4Np8zohwfGf/eW
-n/eWVff7p3XUfe1ef/z69Jp/////76ZsXuP89ecAGUvD9TM/9hYNL1giMxBwBql96hxEZz8CZF39
-Qq1EksgLsqh/bB8/4mPtC1UP/KCR3saGZ42vf9pZvqCcuX4jDlVsWauDxn+ws1AL+HU9VsDfEboj
-zCPD+sHh/dO6H04UN3XK306qx1rm1Jhbxm44xfltLcr1Y4sZ+mtitMZ7lrUaR+FJ3QVCIb5kXYyw
-bowchbrpq4ppRTazOcqdRL52UoThDcxIcJl6dQCYZQrEMjkyFd8JXLpHc6mC75y6ECYbiQZv1TaH
-OEl9oHzNwgh81YjeWA1IDukgxOXSMMBYvKdm04RZ2fgJGg/XuaUiRxknSS56Q6p1d51J2ZX89KR0
-cN3AwrnSjDKPW8bB4paFiBpT2y/TW172+e0spilVYhWCizMrAtgJFLsW9C8kDbQL4LVVl8KY7oYx
-XPWS5kDPbIwGGtGWi0LnBqes+wYGgmUSOtyA7pgxKle1lgjI/Fa6suOkQWIUU7z4TSXcviHTEUmu
-kUYCGUchFW7BB7Zvct/oT/MUV6099yP6TGlYsweZutjvpTAWn9AaGh/lrFqDjGKWFGIU4u6LyOgB
-pCiJy/2SREtt10KCSB/M7uJ+ULhFND565dtQWPnXIiB9aOuZgphqrFjCUTbI4to9wsgs9EAT2Vq0
-svaKdqmRNUPMZXaWQJTXmswUe+vZ3QJeOQeiixSZ+A1tvqRziiYYwBWF4RLu00xQJ/km4/ggXVA3
-CuTqRleV4XoURsQLkDNa9T4VJTiDWZx4SE40jSt2nXo/arO2C6e0JgNgFMU+FRTyhGohGMoWGx/h
-Cb9r7k+KofqrsnkK84mkYFBMk4xURwV8i02JYKZHFeFUVAk+OdE4GndD3SI+KsZzdBFLOT6Ukrbe
-Q9rw6TYt09AthbWMHpTRY8hj4VMbSARMaqtEj2pbTndwKKndJW1h3YRaIBtuELRx4jSkj0G7lVMx
-2aSVU9j6WC6yjXc66tpWbbWPQRdoE/rbAViFqJykJ3UU2oKktKaFPkVz1bOUYagcBFaCzUL+hpxI
-F1FN66LWCJ0hVhRQIUWYrwC9Vt9Py5Kg/tS30r7vk0G2uxVY0YY9qolFGFF0k4N+BLKpy9WBmlqM
-KFuVoUiJHUG+JeYsr82ykx66OEC7TVgoJe5qo5N0vFcZr3sAbHrtL9gLHaIoRWAQv4PUha+a3pUm
-VTZnjM2FLWjK4A0nqG3fG3rQXUdNjBzVjCppY88kMdDHJgOvUi9Rm5n8EFI29mqZ+JKBD/oqU6D/
-FlXl+A1MavQ6osR5BTNaomygjyAMlUyoqFH26V3BKYpCJXKETz0ywC1GXY1+r0xFhstuTkbZX9DC
-w9lEEDvVjVu9zdC1bQOfHBVGlKmVSg/w26V0R90zvC/yZJQIyMNsOM0RwpVwyDlYdAgFMPwtqUcn
-UFtOZUteHGCSAYoJtbGO8RYUI12Xi08K4mRIU1orXAlcKrWGKhvNuzCqtCsq4QGVmzkhd78wjC3f
-Unr1bmHE3gG+oPCLuki2i3NNaNyOALfEnHhAVqIiXPzWqWkIk3mRc5jAgaH0XkVSZcv5Ru7dNkYb
-nb/IKbEC+WuuLGFN7tTYGhnbAcfEnZJMzP0ESjCXkTpE4sIhjdwW9ZOnOpjLoyQq+ZY1uj0nChKq
-FE0M5SSrlfiMSaT1Ljby9E6q3npvUbTp7SEJ6tnpxR7aemC2UeFkQgGgR5Vy2Qu0DHEDRNXwj56k
-vH4dR0q3dhgplEBaMg9vmAL0t2VnSevPenuXZEr3lhezoOwVDGs2kqibsTOZLXmHeOAA7gd53Hco
-mQaI/0RRLT0MJTLjtlku4QuVx/GkL2rwanWzcOlZRS6WYI3pphoaZkjQaRiNGPlay2QbqP1RzVvW
-K2kyA6C08Xwc62wSfXTQpq8GDuUp1bC5ewOqU+YYvxXKqosiG5tMbAbRTYgCXvrc4Dujyiym7ZC2
-ytdxpCZnW/NcviaCrk6egHrMWU5k8R0Y93jC+Ux+NZqp1oAetvrrEGbJXaThnIXVQdburbjjmAxc
-29ZApA32jJvnsM2wiwAfM8b5+1SLwteinRIZjc55vo3LD+GacsmicxLXgJSQrim+S1nLpBrJeaUM
-fDXLAGZm/YEsM22pFHP9Hupq8DIrVXj5SDgBJPwf9s5jSVJm67JPRBvKwZlGQOiM1HKCpSpHa/30
-vcj7W6tBm/W87+CzqrpVkQTCOX7O3mt371EnJAo+Tt+3W3fNecprQ1/pCHKdyXoFDAyYTenaH1kj
-PYAnoiyDvjERlRz1aAw09OCdAZ/XZ6AnKN6RTvrIBOM7+slTQesxFstmJphg2qFLgnCQ1LFw916Y
-TS8CKRAKy2F+QU4tnu1GWCMdLPqHfsIIlb5xP7UNbd3JZWdlMXH1WbWJNBgRDrm8YYz8BKS2EkBs
-PLUEy1AApjW5jdGa1tdILO6HR13sbBM71f4VNLqzVXto34a1BKxUF9nTaPa17rdS75lzWSLDhqCB
-fGx5pTab3JHTQ5op8ZtEtnPWWF2OTuICP1eVNZGPIIcu3YESlt02BeuV+HoInyqBgmjvFsfq7luP
-Wbk/iLg4J0TCdMcGSsNHCfn6ZkL8IXYGuvZXxU6qP7mq8R4iD0jjhnNusLexJhGiDavrQBqTy0Tf
-sAukkHZl/9BbGOKAeWpxtpdmebEZT3bryweiaGjOGhJsLtc+R4sDanWIljcU3/TBaQSSX+go8Kkb
-xJTFNu2GnofCTE30ahLNYkQKRLWpEnfiYuVzEtRD2F97MABvvWdZTyK11KMAJQpmcqpbfaOgkCOf
-TGf9X8iictTgliMr4I3mkDTv7JoBItXWTubuTnUJ7ck5SsonFoTR2S6u0G/JarWmLYGtjGNFPNhz
-ABp53alltn4Uw8j39xYYxVstH113wzJgfyv4OM86tINXO/ayD6ha87lv9B659pg887b0XiUbwh+d
-9t5dw2DwKxGLdaSNOkE8hSwJ1hDNE/ukfFGa37cV/+fsZslukEvCWXfckDFAO1f00u2w5rSz3DCn
-MAVIe88ZDNBfPdjfbnDrOwOu0nWGd3mmZi2qc+g2PvJ28THMrbhxnaT5zOLUfrVczaY3bmfdF3hM
-l/1l5iDyaPPSyVk5QaVtmr6Vn6EauzzoI09dFlFPvD85oTchcr14o9N3vnSVjGhrMe/nkUCwf8RZ
-oXFmpzJ+10QUv8vYsceAQqthLryg9x0mlQIuGxrqK6dTIWoOEFf1Psy18SaU69bSSdjWb+rIpMho
-o1L2AczgudgOBH2U225oes9P0mL47rP4o4XFFh/sZDHuoypFKR2OZRcFhp7aKUR6GOQwRmdEI6oa
-SBipnM4rTkyZWJiFZjTuoasHBi1qWBrwFZqbxgFyYGIyMH1Yd2EVMcinPw7ndch5XBEi11B/ND03
-3128vNxWRce/p+zHbmCXDYSLXjuD28Jy00himS7uzM5gZ+UjJR1efIh2bcROmz17TRp6YYDnCCRg
-KOWnZT+P2wKCitri5eHvA9xMPV+aSB62srMXCOtqKIdDuxRUmnRZQGzJzuKdnnQjst6mW6hmbASG
-1GSNJq/8DWrGYV7J1kWyfrALP4+XQFTz626KFnkYpQLwQrsY8hvN6DBo+JDlYI2Lx+ta6ozCLbDp
-S6C5Pf+VY88UXZ/NFSCsmRD0JfIosmxd2P0H90/a1YzDeK9c5TwpyGgkikbpom1skYzEu9jeF3R6
-nUHLjNpog0YHXahoCv3ZgCbkbJBHWYsP9G76gIWU/BZDBlI8czOn2IFoHE+eqdnx0YWacmkacFKp
-EM2bi24cFiJcl1fmi2EYkECjsDElJeXB5DBzgFbtmcsxXjrYQCiQ4vsmy2h12fjDjM0Sijja0d5Z
-M1mMNrrpmp6+DSKfNto2a0QTFS+TAyxEIvtNMk2rD5hVqMWblP6SzwBXTP9Ju/z/vYv/tXdhAYj8
-v/Uunsrvz6JjAP6/dS/+86/+q3thi//G1JyRs2uAC+VXdGv/q3sBeJSZv+lI2pkMn+lg/M/xvgAu
-6tE2R3djGsgHJVP5/9EZt/4b0l19/Z+LyAl75f9L/8K0V6nA/9pQpkGiwyDxBCJSPk78nw5ANVlE
-JFT4TUoxg860ZETcxjSOO/D43c5kg3pkK2Lyth9kCoJt0tSzQ4fllgWlewjbxg5cWr77Kk3YNxWq
-2JPw/ivZfREHYcpT7gJ+3Dha7QAgFHQlUpqqQU7i0U6Px+FNj9Bolw1ySSOx6EiLQfuOPWP8JDVj
-V1bibkZ0dsQSWJ5rVHLPU67ejNCdPkRq1084csKHtXRn89ob77Yye3TNVXOXSZhJKvzpPa24mHXe
-AMyJ5C6c8vJnCM2Boo2ohN2kivrWawFRMoG1zgnhEytLj3yhgdk9OzTXX1GraiO83rjNyA05ICRM
-76yJvqeTG82W1a/cheyGNlESOldAkwtr+kxiTdY191Hx4Rrd6HfW8IGRQdYbk92HX6XrgtWTfQSe
-sd8IPX5tdKTrNBnU8yzpFUeODiSfFJUTM7Kjk823ZUwiGGjFeT/qAgxXNKe7acpiFIFkHvmjm3j0
-kJKVN5m6Fh88DMck7Msgm4Zha2e9424rJvJ+izRuW/ahG7hhrOeBZSFqDFyyALJvlLQs2gpW+YEt
-aeMdtWlObhckp/OaBhBqEKhaR3vp0nE841nLb3l1dJSGqXdQBiIBUXN6/HmYKW5hFe7Kgvcd+rSK
-hnOf1g1/mvefoHRxa7g6C2xhOwFRvclBujLQ0ilo9LG/pMm30XxFBV0KCcYPCNtBKPVuj+3rYizu
-Jg9f7CXep2Gxr0PsXuq3tKN/yOZPA6owNzV+dZU/98lqP7XiI2XEMfaKo8KR5VBc5qm+Q4d5nUv1
-0KX5WYbhuc6jw0yexdXgGffNsgXirW2T+oSPod7VRt76wkYzMD/2cWxChl43VUgkIg+DFoUxFPbi
-KYnQdWYI4IIhkTem5hbobBkNyOKAiJl9FqP+Rg/YoG5IQ9pP5vDuWvF+rOXOHL760L5Hb4zI9MGO
-XsP5w8Axs5Eh/bFR72BDdtbOiTt1XQw34D7c60WKi6TcjRnhA7HVwHQf7lvHwcnigYLrYRtaJMn0
-UKfn+JX0hYNIq6CTWCMc/D6N026q9TNEaWyyjuQZE7jZP1zBm8it/MgFgVgN+7ovjT2aRYopL3mu
-KyvZWaF6goV36bO5YctTV/+y1N7oUruzeaNnwnvuYvnMhIcjD0s2mFqFIVC/savfOBKrK0j4uROt
-AhqX13XBDGgcdT1IMeSt6maksCWct+xfVej6R1GitHQSSg6subzp2lfDiwMacngvtUOuSYwnEDEz
-hzbUYv6bkbruI5v0N3Hf6eqHp/YV6H2h19taebe5fbOk1q9Npap09TwxTd96RUs6SKHdtil5C3Ff
-fBqZlm57VRAJMCUPEBKNLVrL27Wxx9YeehjpEFQ98i404u8pQfLbOuMd/Nb7SYj3fqpfeUXT9My0
-C+2nx7jmLqtwvZhFe6932TtxFtyf6Q3y4/fQLI5ojINeYYJWJeg+fKBfamy/x6Z76QlC27YdOfJ5
-pn3xPvkEpX82evNgju5LHdXPMqZcYODyERZGwfGC5RTIDOZW3vdy2uOh3o1xf8tYf4vbtr4rJzKx
-6ijZjcTutOW3LLk9U57vpdXPDq0p6pyi/JiKYccW6pJwVKn2Zk1y2zcoEpVcPsOQJcdJ9l5PAW1H
-LTdoT2yNEW/r6hp5xmHpYSk6/ccw5vNnRyaKmbN7TZ+r8KyzDOp6/292un8pDOGcPDESyNSwAfzP
-jr65r7IcqRm3wdJgWsx+WtYF5v0fYR1/TZaHlEa7433EPRudNTbdgnAzBn6gNL10O2pKA8RZ51tR
-Wfd12H7Xsd7uPKd4nfPxjoDuHWknz9KZtjRLvpYyC0p6LuSb1ID1NYDw+Lqtdhy2WYd4VQz/elPe
-Jov+MhvqCmXgjjCz47QwvcpSwvGqxNr0Awlo+hilx6St2betBTP5gv5I/2eD2UPHsoSTPl4rxmhI
-npUq7kDxH/IcRl1mdD94Dp4mvf1xSc845wke5NEDOznUFblw4bFz9hr+zdXg2wi4cSBIyXSKnXEX
-toSKxMtRFDdJY23Rud+opPohyXbkj5PLVNuc5BycJeEcGy8uoARrkB71sbvGc/kS59Wxs0N2JlwJ
-DH8a914sb82cO0EvH9rew3NXm6/IU7tXHajpv6maZzJi1LjJ6LWNeoTFvGz0vV6R9VOz1GMgnq4s
-Mt9GnN2moaHdI08J2F0wgW/ts0vwAqrhgXMsbnmVIyPkWa3sdIuQ9r1efkSTBxDPN0P/iBbtXELO
-wzfxKNlaQID9TiKdRkZv9BT11dZQ30lVN9yIYBoF6jXN8puQDp9VNyc8vvbtSLbWYWw/oualngUJ
-z/TXcjRqTUeE4ci4oMFnJUbSyrz6rrXVsTGyg7moXRSFjHXe8Z4edSfaCQufCvvzbLgbMDUklEuj
-qW49CIsDUmp6h5tMe2uJnYiiWyGOmYRZULPNB/YJcpRejCKjDKJmxvXzTCoH3VfRP6nfxaCiOyfb
-093YWkN01YtvduzvwnU2VW3hyFSX3sn8MbJfS69mKYbpPdGFSccPZ8m2dM9MZIEDEYDlFePbjj74
-wYACj1WC8bV9bN0omC3rjJyOnYjybaIqAfeSZN1TCORvaWYde/by5GjcVF39qMvho028M3JxrA3h
-pkktPyoR0Rvh1rbURYivpLTudHRD9bhmnrn7smSjy61iWf96ArXpbJ4qq4RA8DSQLcVOLMhd9ZET
-FJHor2wTcdwud2aX3aKSjlBbacxPaiSmJNyAHge5wNHT4pIGKVKNRPTdxoTupO2Tng2nVJrHacBm
-REagF5XlTutXeuMyH1qJGaO3+4AgovKG2hKNZaR6YiCi9aI/8UZiEoDPALDE2SvccD9VQDbzdr61
-K2ywoQeYsRUnYmLkbrLcbyfObph0U8Ga7BdV7xwZF20HN72FbbLLdfPF1o0ASPFN2FasiHJTu211
-4xrOjsQ3aBVCbgYRjlfpAd+NzoBV/zUaxc5W9Di2wzmvr3XL/e8uBJ41TfxUGyjIR4NJtba0nj+Q
-2wmVvUX+bte2D35jGxX89UqRqFczHWLSY8R7lJb7QhhfbZkGgxkf6QQFCQjZwVUgqLXPOA6DoucV
-Dy35LIj9QHt5jeoh3+uNS48XuVVjPZX0P/y2moN6tm7KcjwhqAjaZkFV5h0p7QJ0sr7nNIErb+JM
-8y2qkmyKAl0jomYkg84ywveQstYoAUCQ9GYU7MbRTuw7+zc03kyLKmmz7tM1rd+aa/giieek72U2
-ASvjJlF2ENsPVX+lmkVTlq1EY5irB8MZDnTHeehytbGw9qeiFVS2jDHYr+SYYzWiUvP0pVvjj5vy
-wvDNDCTmDgtCd8wJSWc54CAql4MzPuXdWzXvK/1ezi/DHB6IICYosd7B3gAALYOun7eWhuR0wLxN
-diYA4Tuj90ocqr/SlocSPjNtvy3wk33ksB8a36PJwVctX1oWZiX/mUblT1l9NBhc+Eq6fhTTDOMP
-Y0p6e1w5CsMTbdZAcIN4PebLhV5QNp1aeO20omBkOyzC9SMYU+axBclhGy0WlOY3RvaUe29JfUTp
-cBWZc5KIXjXlBR6qPVaCLAKzgAYyTsMJcwJiWtMameOOfGijBSHiIdM2drKo7CPSrXq9oHvHM+N9
-z2/wVQBFOQ+Z8GG65yeCHVu/zT5pGb23PPBuGuaBPTSPBev+2DD00EzfNKK7vKf+JUh4fozKcOO4
-t8KLblo6GJNZ7Jxu3vMUHCMmaq1oxqOjBAedqeIXdrN7YC4d0Hbc5HVynKuQZYTsgjl8aLuXPGeg
-7VmM30jcNGC5GyDJCat5Cq040AmHzBHmkGTuk5Or7bH2cBPiMAd5015Sz9jMVrdvwQJw+0teq516
-ZmG5B2y992ACoL5FNGvbkFHMwMRw502E+rRG1frZbE4U32TyhALGSjzj2KdFDEP6HKb5fiAtlSwb
-m8RYrE0nA4noArQ1tfKJSBqXhNEi3y1d41vK82NkuNBjpHfomtemppopzFMyZMEQkWhLJ4fxK7Lf
-ChXjSDGhHmzNLa+CjEAmz6yAE8uW+brETGptjWHbzDPs+WMBQZY0GmRYPGQC2TiKAEK+ABSR/GEi
-mvQhaG+9NAGqwnOXnFf+8KwHyTL6WY3YOveutUovbvQ7AIYQ9levvY9TnO31pNjRhTt6lXjorOas
-e/WGbOMg8ebHmracvjwQ7rUJ089afyIT7BBytWL2w0tdXEdMmI+lZ+bbXpA9OItdE+VsK1nhFrJl
-m3I6YmtEzKWW/lebOpaXsg8GZFvj7NanUsOo6Azpbci4S8zhOwLaY0f1r08UnHHud4bl/g0izu5k
-nV2XahVzQoBdvTzJqMEk17eQhViocTqR2csmlqCJnmwrdLcEJNARC23GJJmrzo5KSFUojan+yrBP
-2YO9NlyZSDj+uM7z1nItf5nDtufMEtij4u43HOVFpfRxVZwe8lpmhyS0uQMjRqoXQqRcPF4xLrh8
-0rXiEBl9r24hDFXtvfTaiWmqVrnaqRr1E7gc33KnXQgepMcD5lBEU4nfdQX+JSUDsokoJlPt20Hi
-PUUNX7vLtgJp22TON4sBm8XJdhmv7nA+WNxIQdXMQWLp3j7Pem7niDHmJkm8gZahNCVcJV1Yp7DJ
-+evD6LwSgNt8ObQJfLPWyfgLu+xtWYb8prFCZpRqbqKR2GHScmFEAHtmClrdElNeqqBmBqr59VDE
-KtCLdaCReeYLDZDhRGLafJt2HivkVJVPOYvjsSNr4ZYgbpobiCSAT6ej9m9COH7TF4x5ocHK3yW3
-GKvP5FVtHcEKpGddSJ6e5TygQ1ev6Ltpm8M85nYcuMqLU23SlhfBrEgBbeMcRrZWfuGZxENaug9V
-VUQHqOPWSXSFTd6xLAKGPX2Q6Bw/yjzm8XE1nBblroIDdrBx1GVf8KE0ousYN7KvL8/uuHaW3Nz9
-AIBDQ5kKc3yaMHd9xCZzJiQ4/L7VcxonMh7qx3V3tW/dyrvo/chv9VE7y8lhRyDMiSKCjL/4viVn
-4EIcK00fCdP6vkw8+tltWXdHfJDymvICvKZtKK9dF5uXJeX10EovPo9kUdx4zKlOTC1BYTtPlmOV
-MF5659A6hv0sTbZkaer9pEXBIfE06wd7TPSDRCW5XZbxm1ZX86CrbtzB9VoPvSCOZClkoJcZmSUI
-9fYSj+/juOgYOtJ4Paau6Y5t6/AXm5rPo08UjEWChKWd+dTSGxCnjNoLwe5AQAwE9PpgUbKvP7Kt
-arkfh1beRFkb79x+aQ9IGgjhEGus+NhRR68/8y/5RpL3fYu7pb1JubpUB3F0L+siuq/soT0gr4Kd
-nhEB17g/ulnxuaNOyk6KNsZmAHoDGp75gfLWXxJUd4KUwq8IQL9tPY9DyYZxV/7FA1kM42lATkgk
-a0QuIdEg//mmpozPIeYR2ho2rs/a+2lFlJxVFRGEk4VYTuNcR73a88HruS2HjBPSJDxaeVNh12xk
-gLuHD26qu3GMPNqBGFxi6nvEVeFtWnPYpdOykR6tBTBLohnUrMsrqW+MdyoNYWfOF7O4i+o5B8Se
-RduRKeOtHmuIWS0brzWCJ2l6P7rHA6FKN9uXJoHjrfK4X9hbvieF/vB3M/0dwKLPnxqSgDKJ6RE2
-U/agSD7bK097GUMO/O/gSg10U5pjVv87QXbEp9ozf9ZSYUkPkhYaPHbkNA9TtLOBDbzwFoB+fCBq
-D8XCtL7aLYdi0J28C+kH5C+u2QvZEqsd18OpONmljsEIFofc2wOXJ0u8DwsmWvB3mHTJf+xBvZaT
-4jDXuCUQ64XfJqN3GSv1+ndwXZhgjoZ38MAjxz7I5vhbBpZv9oxrPx34IW4mT6y/xU4hmvKhknFm
-1jSe9fyB0jvhL7or6mJNpP5JIcttbFJI2D5EXMIBfa9SOE51i4NJORC8L4xlasJrjehbY74NoA4p
-XWu76InXmx+7x7hLeOC5n7QfywtfWjJDfFdvxt1q6AZqw+fZpvaCeYIvJvlhemHfyb74CaWCOUYN
-6CM+zuBiISH7+/HQxE5px/309y0RSvEJpBMcTG/4tDs+FOCet2kzh0d8GsoOX2sNYUryXWVFRpXO
-EPVIVqsM4PgVvCX0wo+85bSaXNeEZz6OJefvqJqp9y59kV3J3qv3BZl2/t8JKdtKP7S4XIK/b1gu
-RF3Jid+O7lCc7HbIHkYof37RTdqZwCh5I0Un99rUoENj2nls6zG6/7s7x3qZvlD6N1hXLO3cKky3
-auDnj4jJbxSp7f+51HZE7GvVd32AzWrWmN2x9vw9UaphxfnPiCKf+YSojdFggKNi4689smWiE5G0
-jCYbr5ZPhgTlRoQmcT/rpRjrVbemoLn4cNeaN4Zk7n0ffziNSTddFOEOK7/11HtKHMJUVU8dPuut
-FxvGiYhAzV9DIy+T2etvnp2wtAGGos3e1RSiCmgeokkt2fMKcu6bJde23VjfElDmiWFnZ+WurdXD
-kNbs6rWZIFOUdx2V326OWtpUkfhHLsp2IUvlOMPYcXLrXLnTw9i1vxjtjUCTZSBb1/ONyBK7vsrK
-TTX0x3DhH8/6TWOPzYEHAaBEpb1EkJ0QKc2nbg27dAzeaLXbEC2UZXd93+HQ5hdeM/4izXgnx7PY
-w7f7LG3t0lP1ogs92H314fTqTnLv4yNI2UP/ZOG9R6MtGbUd8vfX3rJ/mTCg7m4/WcHuLDQb75kQ
-33gmz6nSjoW1bExzvJ1scHTdVKwJPRYpFuD/Sqd7x9pFn7YWJctxfVuXHqVicd+r7r6u4m+8aGag
-VTr5YGTC7VG0H4nA27qzoDdrvE59+djYBeFV9nHx9B0a+ftCAi4brWciTI+il6+2U14a2/Lup4FO
-laqKZthqE/0lFfa4Cazxpx6rQypdc5PzwqJrU9n4KeYXcpZ4GpW3b0QNdGI2XxrPZZ4lbiiJPom0
-JpaqNV+8wvrtY/sweuFpaM2HeLR3mpUFIeFviFw36Jmu2ZpIm5LssHWMqt4VdcLsPKmfZwAlbFCu
-UZQEBFIyJbeZFwDpkuYHLsogYnQQero8l8J4EMgcfGRGU5A0LqkVcMKaPnoZqvmNsGnbB64RUetS
-IDdp7cf0xRApoFIVMd4Fxhl6KsVW6VyRMQNDMRVdIOPa8PuamAvdIR1niMqXpq3expqUkn4ZkqDS
-vGznrkCvsRH2pmeV8r1RskUuE9oVKVQI+tjIHSAjiXSaH9v+wwilLyq+DSQo1++1NVtWk9nJyyZU
-hFFiHDAxEOKrZ9NzRsH9QUIHWAWELT6maO1IsmG+/0soQSoE222E+ZSBwQDAmSFJaoYlmBMCW/KF
-nQMC1nTvlRYh7oV232gt+2wb0NiAbYKRJCQ+rbafAAL+MPHJTka4GlGjztyRo6HtbPhzZ3PpB7Jh
-tfZ1MOrep4vf3JUibICTwUvjB1j70WnTfzCoDFZNCYhKNFq+NyqRXl1rSN/iLnZPuOW4yB6aRcdh
-e9dW2DMRZhHlxY1NgPzgIDMVBgHXumu9oDho/bGhbo1HmbD7mPpo1QqaQUPuDV6/WdCxIqv41BYI
-M9B1czGEMj5gB5ZUainGiSaDtDJFU/3NskoCLeHJx6yNrIR7ONE/gLWCmXOqXJ2Fqph9RV2c71Tj
-sIiGXKCNliPpaYVT3XSkLO6meXZfIKmF2ymS4pRZg+WTOISBSVY8u3BLADv2WCM3pjEzKlIUcBg0
-IncTm8aHg8J7U/Dyges7oa4jgfi2Fb11xo3nbZLe0/FPtoXfY9m9TNCCqOSr/BNpTmqwLyE0Rscq
-xLbcfMMoNP2YDOSPVQmZTnZ5JTfr0HojxIQkaOxdbkhA/dgECypRvfOILSM8hmaDTRytaVnDkbjZ
-aFyTk6gACcXRDzFv4EuovPAtZYTyCbZ0fR1paCXTzPQutkvhNk5AOTFaZXttqbxHuqLYa8rFq36k
-MRZ7RYz2+1/Ji5KRYrioPCIXPcL23tvOocAtUQBjhR9h0g3ztCCW+StbCWQ5y0XKq522vCvTNO4C
-9B30SnGwLMF6CbalxiuTxjbjHgagHUKwLLxJer72Bgnx9KMMk7U5bc1rqrjQfhkShEfvdgQ/6XTI
-vEF9Nm/jtJakkoQhGndroV1T6qduh85HT9Hrg9+lxseJnj3AIlXXMuUaZIuVcfcUzocl6vZ2NrXu
-GcdUconrMLyZnUw8AHPKD7izHD+uB+Y7mSmWg9foZD8XZmKswuu1Wx3HjP3METdrZBV7TAFPbH3j
-zZIP7nOrxdVNL8rwrlnwR0ULTXFVxep27l1q7DUvTc+dZqfja+2V5z6YWrvcFD2zdFrcnedHjlXQ
-cJlzKLRZLPYMrgFour1sPVB9UUqDRPT/0EzFftQYySGMl/E8UVuz586XXSvU7NsT/apFJcUeFVl4
-t6AVvkHT016smHylDU4FQXvPaI0fWtjWxc6N7I4BcEtP3/TYXpBf7Ne54BGzBl27aozFbxc1S31X
-Muh78Dj1r/MIBWYz1eRjZtJq3+PMyH/bSeV74ZRgr/le3Uva2yOrMSbahzwT4SEk1n4fG4t4FUJj
-YlvFffyTuTpEwcGVxq1daktQKCf9ZQPb/ZCmbBLtmTfpxkON+WG4nXLXn9lcZROb535EZraOnuNj
-6Ik+3hWZSA/CwJreNTYnaFB0IKcwU5dIlZIUJkSzxdauvP4i3GGlEitz3DUpTwUqJOG+VVpSXbKp
-rgdgOXby1ZohXYSZnLD9XA7uNZeD+elhL0eVZ8bpnRtFJuFaClgtwMm1o6s3qMdkVVAydiP3rq6t
-t/1a3VeOnp6NWlIM9U2HH7itbR4WaZEMrYw0eyjIjr7JeIJtsqRKYH86Y1HEaY0lr33Yu3epRhQg
-Au7wmVEdnXnK/JtQ05KdqlDlb+kFvWSOY6ovj502O6kOcPSlXLcq24j3qrzK5E/nNmeQn7gHGFmC
-f8pAFCArpQ+kXO2cgc6hNUf5qwVGPae0zyw3JnNcS5uTV47Gu2tE9J0RVJOqpzlgps+03zDsu1PX
-+guU0fxSg4D8iSdv/MTclzxNvYFWWRsRoflUYgJxANeTu4uXSenzEtKeEyvNmd3oITsuAC+0FKtJ
-nQDsIuqincLUXEamuBgp38LIx+UurfMcGmPvmTNinMU58a6mpTyEonnFRcSgM9FdvnhqZOoHAIL7
-Drd2QQgbN0GMmQ6GZcc4k61Smx1R/hdHltonCBf3c1XWFm0Ju9q6svrB4Xmiunu0w7C8J+edXrut
-DsTH0rqQMZnqyUCDPUYt95DDyc02xTh/2XV/Ny+mfsmURrcQCHAbLnJd1J0UtGU2pAE3KFYEa1D3
-c5qLU1Oaw14nZDIYOolHgIXq3iGAdT/HEyKjPqqRyEX2eahd58N1AGfW62JUe2thCY33jELQ+pqI
-Ct5N1Bcn0JuoQhixhpk/jOIzngQgo7G3v9ENNExphLtA6iD1zvI7jRbXwYnzaTp6k9VHoD4ddJoF
-GZzTfqyy4qySWRVBprnmYwVAugt49oaLU7VEylkIeui3O3L0xVDqfL/Fnl0/VbT1EbQnp2UUgxVY
-Iax0LkA7PlZsCb4F8vRb4NzGxwCC4jCTBQlxwDAocEPXfLFA5q/z/LS0fHcyvS+Lyxlvsbcx2hKu
-fGBVw9jSFG53mAdv/hYIuXq64o3H9pAXgHZYnCjZ6ite1iA+cUNIFJOUJYait88R2CfbEDdQs/ES
-4d7SvqX4n4aKVp3k6O2MlZy6IrJOuA6qZzBa0ady4KSoJESjM+Y0s+zCvkk6YX2zjDhfSVV57jaM
-MZrmcDs+WNb6O9hY9WXWneGt1U1cGYMyJHptiXjGa/PdtKIjNrk517DoSoo05vta/1qVdJY2eJIH
-auHWQhHUiGM3Z90J52nxaIRT+0R/IkePzNhtXtnwoGOAYT9amtAfXGQQ7x7Y6GDQi+HaFmP+QBNS
-HlynmU+EMJdXI6rUL9Fy3nlUKv3nMFxrma563TkziR0d2YjdhVhbNznU4WoreLw+XMjm+2nsw6uJ
-2gu0RD4IP65qgKxiVDcoGDDlArCONDPf1di8LrS9EZoYJdKLrKBZ78YrzEW1CcD9xNr23vLupg7p
-1LMTvs1Fae9rKc5o3SEZ0vbyKrwozFYV8DdLOpuh6cpDbNd6MFcUw3m0FK8h+bt+Z4bZSZ/jgXBK
-7cGqjeq+A0b3oEwV7uw8Y1dahlc1zjz8lda9EOoHnoOoUBrIobhCk3Pfhe5CTkVO+E8t1nyNsjQh
-ujvq2BWUsBqszNtT/1ypeJJ70536Q2mk3h3Nqe5T9CLBE9K1n0Lr61M4FwxZkVPtVa9qOrq2cSNN
-4l5dTIzMBRb+o4aZHrM97GliTpvcaLVj2HTgfppqERfEz+Oh/u/snUd25Ua6redy+8gVCJgING7j
-Hn/obdJ0sJJkCt57zOYN4PXeDGpi7wNVUjEpVWrptquWeiXqOCAQ8e+9vw2St2TATEcq3O54Y82i
-x5INvObcqI1oXWdFdhprqgc4g+BpKwe9dQcy7w27kq68I+KwD+DUkZiUdnRRouKcpI1VX3ljaK1h
-8DZ3bVJNJ+xZXE7IzGd+nZLMLPin7FKYqGACh94tGsamecpuSvA6Hsj/48RgeWsj7W+BS/OIZDm3
-L2sA+VvmfdWuTcngtRi2N8NAraa7QE1K4TiXLh68M+gczUnZWuElanSybYtwOgeT1xwRk+aDrQqS
-RFYYrEmtmPdubOanc+oHx3bExsRIAuU4KNroQqXMe2SWjyztqAGEObBG1PRnx9D3d0GSexc1aYdT
-sD7RWVUa7ALEmB27tNQ7N1EZk4lpCo6hX/LHgzx0dBef4zfu9pbB0E5s2orm3rMGlcBe22ZPBhRd
-AmT8ZOkWsD7VyMDkUkQ9q6bnBtjaPNyVbdGdRdqNuYJcusQdHD2WxyoScHDEL4kMSfhlKFapIBRJ
-UkKaZwOnaRzYPOHTNGNo4/clVzPzQVxTs3emnAwymi/tYlgFEQ+MrOvKY+hCHmwbg3zRgDDqlJX/
-olXkXczZSK1vnbXH3qKCcVV1ZonQlQU43+AOM8YLRXqjwi54szm6nUyh2Z4kE/DGMwZo/qXFFOrU
-Jn++11NuPnSY2pGXOWPnRNXQ3hl/NTETtZrWC7TC4up9NhfXzD3zjNkp7sbFpg7o/bvFwemhsQq9
-x65ePwZ6uWhoEyQY13tnDMei03fRgN4IZmXY/I7KYERfcD5gqhVxdmkKypZXNXCpN5uqGKI/hQgf
-bANsMiNcKHECV+YOXzkHgCABw8qF6F0w1WHH8D4YXTJC55LEnV4RxX0l3wFUa0Csb6dvgsDJteuw
-vJBm4qTpkluLBvacmspkjuT0zhqNbdyR8+t33lB/Feo2anCmOWK+ojN5EcTKjZ9PzDnorF7BzS+u
-RtJeq8oarpN4rHe150c7wr5QbKq2OsE3pS6DUEAl79gOmNhHgTc1eBUbpfezoU4mR6k1bkuMiWXG
-rsAvNnNijM3KRwgIWKGF3AgLd4NodbNLcj1fGGKUuOu96nQEq8o2kM9YYHs+gHeM2XMo58ryTmaH
-PRFwnvB2cvT4Gnj8rF0GFJFG2g2nNSh/HrtUnlIcoxKW52/v9e1JNle37EO8MwQuDKyCQ+a72Tav
-+GJF2wdvQO/ZrOpYVreNw5SzH8mcrQzN1QLCMd8wxoxObT1wlow6XEqEcusOLEJo+78SSf5j0v9o
-0gcWAM3l38Nr/od5wj/+zw8O/V//5DeHvvdFg1Q2YczRRKHxwP/LoQ9fAIs9jnnhki2GGfC7Q9/+
-YhP1p5dHmy5ufKk/omu+kHcF7AhNjqYXyf/+jkH/R7yAwxsDjwN9z2YlMaHXfMK9WBAwYxng0myD
-rh327EEx2uS8tYJBRw3Shqy6OW1g7S+SBbUw/erD13X1Rz6eyUf5kA9Y3oFtW9rk1SX4afMzkrw0
-FLmq1h5XTsVwbIXMMPiHKamNZ4uCqsfQAUW7IY9mPjqYYGMeFw3Mp4QiCZ6G1oCVYyIlv6/hvOTH
-mOBis5yt/Jefv80fUwzv75KqpHdQoaOZ4S3f44e2KRHlRNPTiky5IfKbFsX4jolmvP/5q7CN+uHb
-INfg8l/3cNEQrFmiGcu39eF1gihoEsh0PJca6plWiu1Ftioa5b7Gra3JRY70Rdi+yexN+7q8tb1h
-vGyla99p3STY7nXk471CPp+2C4a3Whm1W9SXZUI78ZoFrbd2ASFjfWbkejCvfMrB7PNIB6O8tQvm
-XVufVRLH9OTF3TEwC2tGtYXyd0LJuCDnWMez3JmdWzwoRWfGeiIC5a3tJLRYzmry6wGhIjyy79Ju
-IcravQZOg46rY6PKT0evNfpdHSUzZtwGW9hOVxwgd2JMUm+TOBaJoqGWTNhsK+f/ZdaSDZdTDMFt
-zWA3Ta4gBLO2NTpXTYhjYhQEgk3mIc1Jo0Plf83zlHAqDLekXUMf8g+u3XvyIWxspB4mS+24cfPE
-jw5zAV7ssWSaPB+DBPYb80ib1FvUUI+wHPOgCVDRHRZ7Aw2mXnNi8KNjY3fYwQezTc65YEumXKXu
-CRUMSqEIoetA2Qsa+UgPT8kxHIofkAIs+OwtCZEKCqp1/OjNWdhu49TDhRgN0yTPA4fK+y3C7CzX
-tZrdiyoMjIdoTPC4KC9pEdfmQKOfTm3DrRm3OGxhTpMXHGsP43xWk9fayXoQ9dccvpJ3ZKMi4VnS
-hV2vKzsW5deA3E970RHhWGJztX3ntnVqk9mPDO+APVC4R2YV2jkOfjbS/NS5VI1nc95md1z95bDJ
-tdb3sIFlcWx8tIG1SnIi8UDnqzentcqTLDF5DoHGGeu91n3KfeqZXnUeGQwVV+wTFrMdzlLc7XnP
-UIaUrR1dZapxa9ztI63dTP6w6icqB4RbmMDuOPEzxODqia07aZNQ3JLxFezzk8gGPxmYdvbVH4zs
-jXxojDnS5riPyaax792omRggYtri7DOAVzpj4IphD8iIvvHNInyMpeO+iqwS9XEMS2xrbj6MB2HN
-oXExVC50K4NRwCNApH4gDdwzk8WZcpNORfwGjaXNDiVejOtyGNxr6myCdh3pvmZYatac0U3QEIT4
-1XhrmXLilmgSv9x3XuKJ/cBxAtyn8m2CtwXFHYe5EeyKcP5nqLiq/oUUJLpFDft843MoFITeOasi
-Ddt4sSAzFdHOQfK9MFFMFqbVSDOaidti3cQ8kJi3yMreQjYcDnEMnIieKBOHjZ5Me2fDrti3bZCR
-K5mSUqzLccK/xxbZm9ckqgsqriDG78FK9E9W6oxgZ/xpbtZO0vMDUnxSxuvemHGKTvXQJccmgq6P
-fKyJHzSlTxyrjMYB+sxkNONJIAhxYBHK1SHJ2Liuh2zQJrM6x/PBJPFSOJMkW6LcJJ+yrk3sARtr
-lFyCnNdDnDmzXPa1eb+SHOPvbWiU9w58v19Cqb1rs25Brs8RIg5oh9a6V4XzmOKmfUlEjdYfEZ9c
-EXUkMRUYiqcbkGaT6Ibvu8NBlWN00bVhrDZiDudh71sDnBbsXZxCBrOCpl+3DuGCISiclyibMfJl
-cRffofooY5+2M/Qcq81nue2sISVWEjhgyNq0CYJd0pmFTbkde/4tHjX11dRM6fYqyupTJDSi9R7W
-nhw4hcwRIuwS774zRcUrO/D2LehMzIBGOCYnVlPOL0Y/Eys26HPfj1bvvXr9MLxi+rj25VAxTegd
-IDl+ikWp9oyMIJdiKuaV1UMhxIusiHSvPR45TzJ9Lck338AJC19VjZdsMIpw35mthaI8t29TXcMB
-qMaJSWQuCuOrnNL6Kenb0FtbEEbR/6agehpAhJ4S+wfILUGIP3eKbNMq8bsWsbSTzUs+hSn9NnEw
-fQuz5swd8wHVqXbNW7Tj8KX1gFMkEBfvI1upGLGhw4qlZ1k8lpFkOgXepbpouTnlKgSvKp8nt4Al
-EKW6H8ju2uEEEbdLvruxzIq1JuczsyD5NVZLVWN7K0NvgP7iBVR0RUStcaY7TESsyMpvkzruql3t
-V8VjkEu33KR0Z33Ne+K+qy71O4izXmM2XMEB/n7PKt+o9/KN1djE+RuW1gDZtUx6jX85xASX6sbB
-+QkT5bII+w4TfAq0/CQzTH0zwi3zjp0xepcJFVnw+1WJGkcGaYrWUwMMH0Kbk9bgfIYYmFUQuLhR
-e25qsGOMDspANuVqSEjzres5rL93mQBO5xRF/IjDv8S0alTxRR5H8VUncORvA8PErYZHqX+A57Es
-obrDjGS4FlaDLA6Daz90dbb2VIlhciKSmJ8xlQelr1vFVrBIx/h6smZCSBP86CcuKpzW7zud/xwe
-PhwePMuG8/TT48PVN0jeP54ffv+r304Q+gunQO0JCxL30s/yL0KZY39xqdwCxk0Ji3Qdl937bwhv
-KcFfspOEiiloZgHi/a+Mr3S/EBgGjfkbNlP9nSOEQ8/Lxy08JxQBJI1TBHIHJxzaW37ctFI4FfJI
-NhC6C8WYxcFMhkfUzLNrQ9aS6YvhGkebZjG2zzjbwdy03Zggjenkmz2qSlIZMPJYS6uIif9I6sZf
-Qfmo/W1vi4bLMlsmL3liBEfXxyWzpmK2Mlfu1JCwydN4esWu1y5iHwtVLUkTro2o6cAiOp3Nkd/K
-xKVjBOYp+kOHv8+3ffZqgN3abbCUu4EkaIi5RJ5qrq1IkkX2aYhn5ClnQZvHaADvrmthP3huxsIi
-sBqEfuY+zqIVuKsL0z/Ebu2+tZhRr2vKwb5NTmszUmPfwJtAPUO4CFIUkSRyx2t7aGce2YXoM7r9
-DLzkvaP4aLXAuprUddlAiQxtmia577C3171DMZvVNw1ksjn6NoUlm8rE99lwhOEI9bgDKMS8K5u9
-bwyQWC5kFkIYTNNRg21z+vrZTyYUJFbz6RCoCZu6DtKBqJCfNY85ozhM4Y2njni5kluegcRgChdg
-dJpF8tymjeasLKjD3FR1ZDMsChr1UpBEfZQEW6eDF6ju0iHJOWE1YMeHmUK1p8zU8vNgiNTXWZmz
-v+kymV42aR2LdVXmw7OyS84T2dwAvGSQdDVURfGce0V1E/UTBSNzxC5ubXohHW6r2EmYlHhJMdwZ
-hGHeeEVHHA0rcu7TPCZ50PtzrzdDl5rTrsJkCzeFyc0LD6Xqe0EjIrnFIOowfxA+zdRmtGKio6NX
-ob+hLU7NeqRO7Y68vKNwMHrOQOOEjL+C0bGbI7Fapna+Cp7UhATHs9H/VoNtiyB7qabapYVqb9w8
-n7/lsLGewmIiAmRq0V9E5ZRdxPZSZRhSoQegWc0+GwQ0ICZCPjHX1ZwXQ0bNolYvoePgvi7a2Pc3
-tGelBhef1mcktxPcU+Y8X/qJ012Q4OGAoQv32RQeuQ136OozQUb6lBN+SRI3dfDrNSjyE3tTMlRZ
-aaq1HHFBmS5aw6ozEEFWU9Q6t6BzkdPtxOt3mPbNYENJTbOz58C7gbRaHzCVjOyxSm8f+kFGLFOn
-FBR6Iqf1rq9DKDkDqJI9jr/+xgBmgLFGi+a54SDkbot5BHdiwOvgNdUMfCzJGReiD5g1VtpgeNWV
-bny4VouwWbtsWVNzHKbdDNINsLud2uhgBZo6FZVFovedkxGwGuN+lps5iHAR+EH3POuKvLQoB4u2
-Nr+haRbYCjs1baUFtKJEtG8cXZockws9IWXHj4g7iTPfzhE9GFm/m5N+H0LKhs86TdYZ9R35dZzQ
-AwUa3Sfkj/aR4crQ9jeLn4gCwapIzZUwY7C0Zmli6B86rFAckiiqtGkvHTc1SDvFMDUBuR2EQ+xs
-Ek6DDC/zKnDXnu+GT0bhNc+YPdMzkgD5S9fWjrvqaG+zdvbU5QW4OpD+aGDKba+zqFG3Gc60jKOx
-rE9jmHREmfEEd1uz7RjMaDLka0NPs89B33Ke4qjAuIAeaNRbJJ9214O/QcQLhcS7pwbzPoodhpJi
-bidI3PHgfs0gMF1VtiDr0Xm6PkfajaNFJUkfmCDRlJzijfgFyiO4eISegb5cy+03BefRaFvVPXay
-vjTCV9hktdhxPmHCPlVjAkyyMpq1xCJGCE8laH5WMME2GwPWfU+wDSX3Eto3oGaYXDhRUbyNne/d
-9jK19GogGHTjZ2y/Wc0kWiJLHdeEkNZIM+M82Ec+Kw1+RhOx4DHEBhAPbR8tcpad9TCacccuyKlA
-3WOKwuGozDF+LAfYESu7A2s42BHAhCIshu8ix+NexAAlMLmb6CnvJnvNLjrdBJMDtAbDC1d1MS4O
-POEFi2sgBFeFwlSBjwnqRQdYYIIuZzEXg0LQvUMVM0EsLbDD8SWwDPkElLcCrGmFLsYbEzdDT6eY
-wZmQNXqFfsge0cBR+dBQ55OhaDPqYCANzmWL4yO9YTnu7ZPcpBhhH0wW1zYetwtvHCHYB54ln2Kw
-RBa+U4X9wKYssdqnXZvz+6CevEVp5T5bpU+GrepgS60CiQ91V3ijTE5iQJb3nmMI+3SesSoduD5Q
-V4jElxKjNkzpdTFNDDDEWEfpsdE1AJomSrz5GnuWfR+IGDNVkmM4OSbCGeZD0lIBu2q5bDc59plk
-U5Tc2uA+84aao5aOLVyEumX6ng8VMB41VkcxJJV946VNQgTOZgh/KMIRBnHOQjDeBlSi3/gsTsPK
-EliWLkFYMjgIVZE9+705xZupLRgnQtkPYkAgTcPB1W/dA6MyYqNi8sZ647T+DCTIbHyFJ8405Mqe
-O7JqU2HFN11pNUSEEUtjtsFE7JdNPa2Js1yElXhQhruN0HQwU5HIpjaAYUq1DVocBNsa/SI/UjYt
-u51wTdxqpqHwHWBg7akEaMfUJGzjEPnBecO/H2IHADo9lwYuCKsIt1ZchppL05pulerH7gSBtuv2
-EQ3Sd3Vm1f4hS3LinyNmrDsOVuZ3W1X6G4hiMcBjDCBu+nYI9pKDPbH4qRXpy0D1253PdPXNCAPO
-6MM0Dkht46BItHlTdUoXs/WE72GJL0P8eEIRpd6pbk1vX7FZiLgf4jw7jBy9gVoUZb9Bsm6CDT4g
-7IbmXJkYbpOKW09K6oNBLWBtwhLBAqilUlcNzNd0VZSWTwJryRi3fGRK66o8CddWM4l7AbH1JUVV
-xOcECtylucvU9dqvx+IKbCXcwGJI4KYgaYbJrrAy95YnGZu5tpHqKvQd8tlU9bGjYhRfDhcl1W93
-Iz1vLvsdF/aobOiyWEPI9pBHLFGNG7mwHHLqSNutmxEv2NK7rS7T0O8f7bwLcKJQT3pWGaN6862k
-I4cgay6UwnYMY8V2sCU8icEdyNM8QFgIRa/vYwo/WQ4wetBvFU7FU0+RFba2OOdxP808vdGqBdZE
-qFvAOVSkaJ2ykjF80D4wXQyms8sCE5X8dHwPwUC6jrnfupZVgTHfMxGPabzK6BbtfWsTu0Ny6zZx
-26Fvp7G/cnITDkksMmb2GPPezftASnlUS5Z7Ws8CwF88KNydmYTZvQlpwuJKhyR5MrbZZP5FH+iP
-s/PleIBPxDEVuH1POBxmfjweQLyjmMSemDANjbMxdUoZStHHu5/Pzs2FhPyRXP/ryyCjcOCh2Mik
-L/Pj6ByUEisskNAN1pBD6+HC7IPZ2BZwB9aV24iLyu6yXVgpIl6jP+4qms2vGVfYVz9/I8g2P30f
-y9fxYYRvl2JoGWpFmwhdeDU6qt4ra7ktVYax0uMxA5lw5WTI0g4Jt+3PX/3PvmxX0aRp0tpE4O5T
-F4GLn2ByMp77nQfCpLWomJdjU/zFl/2jaPPrT/rxVT5RqesiQopRXbTRQdCdOJU7bUXQ9bsiwuH7
-8w8kl3f86XdFj4AXQ0qDgZ7z6RPhSvXDaMJhSNqRi7sbueVZMRFCT6LCqp47QJPmsYAg/Qx3adwM
-LUZklRaZuU8G0z4vyU6qlfSBS0Wg9A7mLA2GKKb1XBYJe1+DvRhshlh5VwFMyr9qw/3DD8KWWrDI
-sxnRCpXrk3IEJYlpW+zhIYbMtHJAqWyNKDKPP/+W/vRVIJm7juJ7ctWnIzhg3yEsNc02pS25vbSV
-7WCSOH8h1v3hZ+ezSGRHye7Fweu0vIsPl3YAXm6yaNvZGD2pzzCkoiga8MWOvhhPf/6Bljf8w6/O
-S9Hwxa0slODUtcwcPrwUu2chRBQlmwr+yOsMnPXOcQI4SUAS4YUWxkngAfr5+Yv+2edz3kvPkFd5
-/U+fr0b8cCFbxlQAhtVO+jaZSJnjgjVIff/9l3It9A3sqw42jEUI/PD5HEL0zBu4LIbZai9RmbJ1
-0WtyoAn2h5+/1B+vDWVarMLsOWHEafvTtSFmum5LsumbcpiLvdekv9SWm//FuvPH34vrwbS50tmA
-L9fIj5+nsXCL2guCtbTVdE+DxUzg1Q7PNEWVZHxKKBczUuRf/GB/9tE+vuqnj+a7UyHs8L3DoZ8P
-fRm1+wLO4+HnX+CPIjmrnalMhfbLHE0tI7hP16IzLmhRZg0bQ3fIVbjeoQmN+TqzS3lK/MRnjjP4
-1sEOW//bz1/6zz4gBcxaoPRzmP+8eoxzQ+fYOPJQc12Ey04mZ9R7hJv/xaugOoOgXQwH5ucPGHfs
-s+BAbpTsweawLu7M5TD581f54xOa7xEvhKBPgeyT4316QheKHBmnVmI+BTvZTTUUgWIPpdqWobsk
-EELZqXU2hUDm1w0WORboSvgrm2yOBApVltVfvKPlovxxkeENeXiv6X/A+60/vaE+gIJTzTZvaK5s
-7HvVfJ07tFtRO+oKqBm99xdX0p/cJVIIrBuWIwXlRJ+eZWFr20avBrgzqiWm15oSvhO52IPwFOfz
-uNRnvUIF/oub84/rmmLJFtgJJPenKZar7MNi0xqOJUxqFKkB1mpHp9t89GGQOSvmtdL9i4vpfaP1
-6VuVrABSLo8IBIJPmwOPaKWCGBFvCtUhZGNNx4TdGLeVIxS1f7gLGbmZmNqaQo4g0Gfvgiu/QPTj
-DLsHP0qR3Oj5+/er7z+KwwfFYek24Rr+93alq+hb94//+9muxJ/8JjaIL5bCjkSTlWUz0VmW8X8C
-RW0XHYIWeB6MAB/ZXbJI/C42wBq1LTxJyBAOKyQLaFMgm/73fxmm+MJ/TDg8zJcmE/Zvf0drcO1l
-Kfp4cdGrshwkWJAtnmqe+2nFb8raALTGcC9I6Y47gp/XFzMg82JTylYcfnWfJKNj32ce9gmOweVU
-AXdXbL4MakLuW8vmXB+HBpojxgUj3RlJ518qjjDuGodT8Ab8E1B55gcLf711fHtHDFp+N3I2Rodo
-NC2iaFT3GBSTOM01C6cbbPqcHcrKKs3I3Ee0c+BPxCnzS05C8jsksfluSXxSZTpnE8VS2glvSkmP
-Nca9qaWSrwHyeVBQUekviXVbHTp8g2AnmDVc55MSL6YTR2ptlIV9kcmWMj4cLPy5Eo7RrAr8Ma/E
-N7y3VqmS8Sy8PepBG8O7K/Omne84oNW4KtJA6kM3dyAQcyb9j5wPkUdAV7jpSdgrySwa2ICzzbCe
-Tacc4hFkg7b0n2YBxxisG4rsBqq/+91gWPfcu7r1t6OpMboMlCQma6hxUbsBwlw/TLrs/K1l1FQf
-gPsoEcKL1rm3AP1fWVPRpYfBoTwAKF652HkGOd60Lc3Om5xBcbaCxKLlGlhj8j1urfjWGWDdrrXR
-YHX2BcMUqBgJrqICxs5DPfTLcEzHgloEOwziTc51mmIxQC1flWPvXBJDA8nKU7p9SzN2dwxewmTY
-BQQ+78LIFsa6o8+FecwUSHNVOwb5wKxyrMuYOTGzgtKXXC5uYpFPHKvgrUiAQK3aLJr8TZRTtrwr
-5Vw/NlbVl2eQn0V4IJgGNs42bPyZqTAQIFL4uDd4MBg5W5VLgaYDh+yiJv8YXDTouc0eT1e3jttS
-BQeYP/qaKoj0VXiD9Qa8ksrX0Qz9Z68n+7ox8qij80CD/qubgqG8YfrRrUP6acItQ6QLhauS14Dg
-iW3p2v0+AvrJd5rgEiCroAK76bol+WwTB0s/J5eV1WXEh+fw3i0zZW16KZPXecxply5JgZP/aR7H
-IQZahSNambsskeb9NFUs135CGGIgekDkYi7TM8nAkMsyAWvYoME1N9gplDxwHYC308NSj6IwWSHs
-S36iVRd5RGwyMTGnEZlTj9sw0yGBxAlpcZ9RDAgJMx8ZwedDi49dW1V3nmfOJAl7MWle6/c67SkE
-GUaigpbtPppyda7xxxYOHdxYmajjZjRj3DLuCRu8XEthN4JO883tw/ZyQZt2y5A8uy7MhWoS6KXx
-217Kv4NoKQJPoqUUvLe4UDdGvZSF2+/F4eDgwTqgQFAonr6Xi1dLz3gA6KXZJ+N7/bg1Ave0W/00
-YOTfpM0wPJFcQ4rw3+vLO/rLr0eYrsUBpQY/RZc5Jbl1g9rz9r0CPc1s8ZWqVorR3feS9Pq9MB1h
-zvrmGibcfq294ei9l6tHHAbv8PaVjGlxZl9N70Xsqkv5SQTEvWlNhJUuB7X0tjuSWqPVOC517m7l
-VQ/yveQdCx+F7/l7+TslsCQlGKrQruLALfgFLA7U2PK9Nj58r5B3ljZ5571YHuoT6xw8SGBDXa2a
-bkvefkbFrExHXCeaaqNjSaixONgEks+JjVU0RwQT/3rh6u6rkWAa2k5tEqA7Rq6zLeo8O7ejFEUP
-gS27X4aGjMKwMo57F5MbiU90G2KDKr83QD9L/Gjp/BinvfWc1mk2bfzIT1/DBHLXVpEsqlZ1GU5n
-IVVz6CxNZT4VnGxwunpJ89W2O8Wt25etWIfSUuUqLkb5NKWBf9oQZLkDSRTfxmkUUf9G8+lixPC7
-Zp0bXXbaelnYrWcKxag6ztV4HRDOEesuNrpzq2f/+hgZaXhe6IFq0ViQ2d83dowe18NNeXZjHgjb
-2auJGuBxwUVih1ZzaKFPKgC6w3jr9Nw066RGxqI4VaEtSxANN0jzVbKOMzJet90g7L0j+ZlBQbrc
-Gsh9tCy2g1+9IVKuEgdvOCRspI6rQEPV21I5ZbUbSUd1ulkMtQ3Z2i46J8/id0fZzSac+7JsH9se
-zxL3hcKIg3lQrbDCmHdC++mVcgno0b2BcXVlzrW6FOZ4YtDPxAeZATwxhc5gSzt9tnj+FIgD3HTC
-fOzcTD8MJgcqQsQpJQOkuYA1DtTVM4pRhAdts+5O+qzDW1lQ1RWu7MCubIhVE2RGQvej3jrW0hzT
-z0xZ0NFZPsC9Fs4T17+XnsSD31x3WJAEbDwIT5s+8icWqXEiwosVNF87lczrvVk1cbjukWO4lxtc
-UWssDTTZ0FFQbFygPzXFxyM3EBE157uXYkrelu5op2uaDsm5YWSFgENW7ykhQpbgdsNrBIMCLsZO
-dmlBvCMcwnM6oeCGVFjCHywC5AAbXYdfCjFlgehpv4JrQOM5BdG+MbwCCqIKV9Fui6bVDdRVlFzv
-5kHVg2luAj8DW1DjbmwhxPTE/FOPfUYxTDw4Pbc19GqmS+UrP6PbQ9XzzIfYqFu9qesEQMyYCBfR
-gF4zKnUArMXFM0t/xaPBjrrX2st7xaKSNneEf7tsXUmL01cwe4MAlUFka5N0sjolehcTmOsdO9gB
-a8VqGnm+d2cSg6CjhtkzREVbCbEmhjZfeIi4LaY+o3rmGR5g1HZMfY3WN1TbZF42Ql2QecaGFCyD
-hJzMzwPaHmsNRt2p26q8R9eGzsWzbQpH8C1Fa6KNsZhDW7XG1HgqJvy262LI8UAYM8RPqIRBg3Tb
-lGS1vNQvAF46GSR5PQJiWTkNxHJ6M0MG+4PLd7lGsIqvUPXqHYU9abnpwQWPO+6XZtjyzmPqnJye
-RYZZA3k8Zg/ma+PLJTLL10oEs6vYF1gcaR/C0Gge+5DMTpq7nPZGpxN3jVmD63YjoB2byq26i1FS
-8cHHSRyP52rbnjZ8aTlYggB7g+7QfU1yv0jejbhBRi7oyzSCotzUZpWQJ7Eblkgp1XBdJsKivZtM
-tD510etbPNJFWu7YnrGf0jIpXijkYWM66ZRIJe+pnHn+FjO1NbHZX5PoGox1yb422CifjC8m3jLd
-TPh6iH0LgogbEComU7HR9tamHEKwAu4sgcShdGOr60uHSvoI9qBwc/cCYyi2spEFn8dLGVNCBzJk
-FXjEHjHWmOkz4yFK7TFIVCdGb5gACAfsJqsyY0VaUU4uXiZDMYTopjq4JV2O6Y2OpPIGocgMtgkl
-S/bKwi5MT7SdzktvemzuwjFaBOVeB+pUN9NwJtIUhH1TFXIPCgMtWUI+g50hHSy5bbEUp83WcrlE
-OMZfLZaUb1nf9/beMkVnrD29BP3wjeZcJn6WvOVZ7JT8XpRCbni6VecwNzN1oI4jZt/Yg9uhhw4L
-qA9sUW2lclnHwxlQzBrshb0fu4jSXnweCl6e2VBjaHSCzXEcOtWRcsG4wqfn4d6u+6HeYj9iiQpl
-pb/3UduJHTldJ1u3oxRPQiVgUook0AFc9DZ8DjWN6juH7W66Mym3w40MW0nuQcbBgHIj2mB4xzNJ
-CwWP9iVsUvOXxpXs8V0cUTVnCRH41HLjxdi09Nrjn/Dzlsec6nFoDYNXfhdk/Ad40RjDN0lfZfCe
-dddVnHvy7kUlmoNQZ4ikWQOXyV6c2rKAqNixvC/ypZMEZ5ei2U3UXH+hnVm8kw4784nJpVdDnQXX
-uSqyKj/R7Plg4aRw6twUG9GyiIxcCeSeubmMEG+WYMmp9zJolbsqCr1AlJjv8ESMKte6Jp8w8WP2
-rbFz/C7f240UAGCi9p+q03+mCh+mCsvc01PMlP79XOGmyN/+8f/yiOnmd4S2djq+/fd//f53/xwu
-ON4XRTCGSSqzPwRfizHUP4cLrvuFGQFzBUbUzPqZPfxruKC+YG9E+GF+gAYk3nNSv08XLApQ2IYx
-xCPCxGnX/DvTBVOKT+MFekUYVriudrXkHwaVP07KdNvX+WzJZIOB97su4+LoRmV3HCJrya73wKva
-WIlz2olO7VRa26w3NYs1xhIKjcynvCrbJ4GvodhQlgpaxA77Y5CHzskM8Rh4aW9Nu9I4Ai7KKAfr
-kvOeLTmjRoNTGxxxefDciFWxg873NZJ1uSbb433jedJvtV1YT00UlzsU4eIY1dW0x/foP8Z8EsKJ
-gXCW4Hf7tXRkw6TByVloBfnlHiH+GXMVEItYgeVEE9zjZcjTjQYs9i3rzOHKr/LGXcFcj59x8Q87
-g83wQ+TKgSysZkfCZ7esu5qiNBBRQU/o2DehuyWmumCOCMrX08lLCdsEp5YYHhGJBlAmZERx4Ihy
-O3FQBic1nxSUHZLzToIbM46PY+HYa6fV2QvlGL1zoNGkeeEcnHVbapbVYy+7alghZJ2TOWn2zGuJ
-3nR8K6GzhFZbz/f3BNQs50XQWvE2u4F74VUcI7bMD42BvoOmeei6rHjKDeY/KXUdOxNf0SbECbpz
-YVOzGRTOdSU0vvzWj+g8K9tDEeuE8DTZCTfAqOYWvb8LGXdaK3ZQ4S8JKZE3fGHGVx7NFIzURIWZ
-ICxVp358yeMR5IYymkPmAqvKCtIubeiGJ7DmLmGV/H/qzmS5bSxLw6/iqD0cwMXcUZURzXkQNcuS
-vEFQEhPzPONtOnpdT5Ev1h9EK9t0lrOyU15kc2NLpMCLC+AO55z/+2+gI2w6SvtV9PHUz5RUH0BT
-xWtTm8C4y+c5ZuT3vZRtJJMyo5zJxc5BdCfsP6G7YG6p13Rr1ukYiLfJlR7yptSC2qLsYOKa4RhM
-75grvTBZFBpevs5Ukcq91WZwqeKNU5bKlZorzwUBomWkBdcUkeRLuzKVZYvpwLwv42gK8T6YE9tN
-yFabEQcww1ni4erQwDah9qvP42UKGYrQQuQqSxPh6qKkPgdpKsZ3tMOyFKhOXudgG9KqW6T+YnSw
-Xdt6ru8SKdNX7HnsezojfAiFTamwrkhrDx3YHExUw8XCSXSUNbCHBw5jcQc0SHLJk8UPcutWMO4w
-ResLlu0qzrSXgdY468x1uzsR5+ZSR8Rw7kaR/Qk37qSFYFw250bqi02tDNKnIemrc1sJCK4E/Wcj
-roDq2x48HLcu1YecR2mR9Zq4UK0QZJKSefkUdWe5tlGLPWpOMwdKO/MqpSDmhQoXQZZhXlH60G+B
-wTmspeJ8nSVNdyE0KXsQSX7bEy+/rKy6Edk0DrRSui3A4/TaQq7cYIuZiwqXZlTbEfI0pwVWwhu/
-u5Mq516CQPtICas1x5anXWBTASxUR/utGSN90oeyhsKHR3YENr6CU+V0BBMeCYYuH7SwttvLzqtM
-u9bB77O4WISiQ/EN1+TMauyRbskHWwEVk+pOeI0hjneEQYJMfTxCMkdO42u0rUxH7mRlwfcsQIjK
-LhDJcBSku6HSHkIc6mblKIhPQ0BRLTEYambGP2aT6OP0FxnonHTXzM4D07M3ZusjUY+7CKi/ZgTO
-Gds0qUBmCUt30kZsNzKhSz+HMdJuSg7KO6jQ1apCE1oK4jHA9FcDtNpNF6gNPmqmdCXHZr0KyzYm
-HoLHANFSIm8tyEQzEQ3IsIIl4UQGCgTjMIpvUI1BJ3RCdt1GGDc3FED51IY48Kih0eVnQ+P5y6CT
-sfAzS3Pe5Xo1wyURmU3SeBdmoD0Fia3j4+gOS2vwYqqrKv1z5GuFPivdgk019I+ZwgmDOfez9iIz
-MJHkljBw0Mx91vBZOewxEdzxIGkr3+uDS6VRzIVEVeBCfiXmYr13HcZAW9ltQ7R97fsUhyNYNlyk
-AAmLPp5RNoeR190jrArWIFbCcsGS132xCo3qRFfXGTLF0AtAguDj+kmJZvncFRrGyw5YQ5jqQAfW
-4dByTIDmyUyzub5uHQPGBJyJ+IyI+q3mROg7tQ5j5hb7IKi8FBsCLOUWGqRhVRYlEva21+7QhY48
-iwTugAkA/Q47rGzTERZZYWwHQcDTs2mjckRVj/MNXArvGpshCJpDhrbdNKkYlIsecz+thU2L0zgo
-grLlbnLz3LsHJwCbTI7reHl8IsKWjZdWYprhhiqnJA8jllQFoEvVSDalYJzTPzaRpQjc07QuHsIU
-DEKAEukFgAptwuob/UyBGE2OkE6S/VdR25eprN3VZiVlM/xwKbMLQMtiN6LdyT5PKje+wHewjeNI
-Xbw+CW1Wdk9tDnU0dWFDhcIjDv2KYZZlSEcuw9StZYz/c/zGWYYqVdta4fHLaDRlDFsgZlTRjX+F
-DRBIqxxjGh76AEBTajbSFvoC54kI7hZSG3+RxZgBJ8BI4qJKplyb5CaJ/XRq1Kn82Fg2XkeZIsFP
-7HR17lEGKs8F8HHCwTGfb/MYAmYhEzibNNRqpYticNqZaQowliWC5G0siHlOtVpFRGkDjjFxTIJb
-gx0zk7LfLkRkW5eGp0Dj92JPmndFh2N4QD9tVXxm2KjVEpXXzjDc6KAN0TOxz6BAwClXmeZ5ysR0
-83QaD6H8eWC3sukbVcKsq6838qBCp1RNtBKZE5pXsESLZgJlJHrQgbdQxuhqKVE4OW0fDEjYn0yP
-nXTR+5JMlLeV8nU0mOa6UCX/ogbLbcyzXK0eS/YwVIeClt2Q8x/MqdwGCR6Wg1lf2y1Fe8u4ldB4
-E8acuXxsplQE8CZSqtoHU+3bJ6Xq7U098jeJaT5CTh8u/aaB91E6FIVHXJr7fGjY5AWBed16Qg5A
-Y3veskgDd+3w1LGk8mV1W8WKtcviwKSUOqAOZm6pNeoXy3LW7FQzaQUkIDirNVGUXCcBarPS1DGG
-VOhL0CTRp6a3lanQvXqnlJm1cT3XWSKZz6qZRjUgivAIgiUpf8qO5BDZSVTjVBUwTypBZj8NgVti
-IB4X9gaeCUmPKqxBvKYNNqQLwtnlRmmL9oKHvrtxapF9auSaaTgRHYvYDp/5wGX4meG1jMMORTtI
-NBNpU5dFiqKRefp80AdWfYM2bJBqW5fcc/2u7wCEKCnyJKSEIzHSETKVyYQ40g1ARPlTDb21nXB6
-0MBIeYxmZ8yqWk3ewG0adxmAXyR4QwU6KvLezl8MrcMTpQmthVmr6GcyoQQ7hbpShUVZzEpX1lg5
-z9Nele740X22rUh9YBtblDOVeOMLlcRgIEmgW/cI0Y1bbk9jl5spsSwH3BB2qOZVjG5xA7Gzv6kt
-u0coKDfZeqy7usdfy/okoXJ/GXcXFrFx1QgZQhSmkpR4wVQfHO8JpgfbVxJB2KxoRZTdZipS0A2p
-KWlXW348OoCW5ZPTJeFZH6HYaHKJq1aX6VOjciUHinl3EfQna+Q95epToznSpmI0m6pDIdYUAZmL
-oTPshQXMb0cs1zyYowS1s0ejsD7hGiQtJb1BHXZTTbbsawe/xhUgQfuiJVfBmKkFG1WzWGNaFF4Y
-owRmIrI4xgamNeXL3HApSYVAWqzcmuiu1hrRuQnMXuCfi9zGP9Mjd99wrDNuLmNlh07Fjryyl2aQ
-wgYYQsi5BDWqqctUP0ox3SWODP5UYbW4TSE7T3VZkS4dVgPTIbOwAFQkyEhK1V4pQsSrXm6tdYz1
-WWDXD3R9wRyaRrvYMIkyYyQczhjlpXltRebGrxJlRQjsCRWCewUqCK280sRrhKsNK/LOvKLqX8sn
-uazhcqGK7MzxiKUUbdrOPZMFYaQn5UKPne5mcHqk95HTbQ0EF3eloomZgprgGmxQTrqG8ZolMZHQ
-1HYGjKTJdDiV1ZyRQsX6IXWf2pFcIPvCAnMBPXHawMc89z2tYIUr4Ak4DpnPkG0j+ufClWespDtE
-QmwiKtE7zFAC58MQylo0SMlcloNulYu2vNAp754NZjK85EUhVortthtd18TCMmqJFZIt7Xx0rD+P
-GzuPwHiX8oBk7X3eDoCijHJtZJifxAIwMlzC3t0jL6c7O8aswpFtRF0WzjW4kRTriCDhVvb8asWA
-AM4mdmp12wyIApbCYKjeprZmf47gYUMsEETwKSiOs2VVSt5TEI5QGhFQk5t4o78v+CymdEmH2Uhm
-pzkM1YCllWqbGME5QA3HO1HrNowl6orAOzoAQYA6USykCqaa2XhcufatZMkBNlt2l54lFmTfmVnZ
-1jqsNfRtCQi0T2Vlaociq0d7Hqrol5lQ03lHsckmEmTJpnbQaN2isJRRDSUy+VDbnqinjM59uqgY
-bdUJZfXdZ2Kr4T4124ZBLqaDip75bJI3UnOjpGm3a3JdbAY/le6alKBATd7sWiPRwbIQD3Mfv9PA
-OW8qJz9vUVHNRdGAHwzBns594ZR49tloo6aU5nefe69pH920j2+IwAcb/NydG1shczohdaF+8tCx
-hxxP1md9AcJ4SrCQhLWLY9witvP6DK2iNe/IxRZT7EeokDQaX70s0X5YLCb7FCWgHpJpQf9EFMMN
-riBmZ4hjFAtacC8JtEjWYN1iWuR8BhkZYUEnl/jvmNkFWgxvleTRTRnpyjbxEEH7dkviT7cgDGVq
-LkiCR/mZQ7KB7LnduSj79Sq/bUEmUQ3tNSXl6Fm38GoJaIdDsf+qiGSk3iHB0otObburQAKDNsGm
-071JPSe8dfqqeekYl1HIYeIpQyzAFIXJQ0LFMWRh8sBAQkMGZhPSMNR8LBAC4Z4WKmncsBkNu6e+
-dTFQMWuCBx1I7zWWZhue1sybS3Zqu1PPEIhB8jqTX1hkFystB6idsYJn56QLn8oC1CZXbunIrFsU
-R3wiQeTtGtRUM7QQ3kax4dj7ZbOWa50UUZR1eNTqubbgJlNg8wqsNXiuisuO0NcyKyr3kmph4U8d
-Cvl5AvX6yYd+u2bJrQI4JThMdt9q83PgbN3CUP3iqZYqrMgDxzp4qYcBXt9jbWfKEXNnU/jKObsu
-jLU6kNawRmvDT2CBK2Y/DbXE33atai+1qI8Q7HgzEFxI1PrM3pKEECQytCq5dgs5rxaZppNjL9i4
-YInUzkMvla5TjbygXHUYDJLl3xJU6icthexV7N4yfl1VkmgnEohW3ScgYVC6hyqkp+jcN9yXuIzu
-etHPkJTIOzmp8hlm2cWu1gr1sfUdgYcM7q115RgT1HfXbemtpQy3eepKNogLJzYTjyS8K/wlFrGE
-C0/hP7edsnNT74J9M1nQEGNZmHxQa6lowyTPMbR7D1v1QSbXAiRmDFAvArt9zBxzW2SQSHue2CWQ
-XGuaeH2/EyXAgEwjMBEgRI3AOxYiHJahLvvzIEn7YVZQ4lG4trFA3Vye61Xaz4HSautIq3DVteL8
-s5IJsWitqtyVhuOQtnEhrDhqoa0G/BxcCO2N/DPs1Oycu5ZRSgNT03jucCfILW9qKQF7qHhmfVWo
-TXJjkWWZ59iSTsJBB1ehDbdDo2xN/BERDzZswyiNRsbaatuwcR4G30IR6Eod1QY1jkvZgO2wFuD8
-2ZUD69bEJEUew68pCjajngqU3kXqd1WNThkNa5iN37TOzKb8olp6BXwTKVXqF+K36bnqZd2y89pi
-mcIRW4SQaqZsB9WtGTn9LlPd8pzyg4Y8ptWYN0Vj1NvQMzFMlzvz2aTEGW8CoWCoAovUSAGlkpGL
-lr2W+QtbG4wnSYEiS2lWROGM0MnPycEGTSnr7FK2Wf+Gxr2qeWLeN82wjhLPQBcpsMWM8ypGaxYo
-51omIX8UWTaPW9ta9b1R3UlOpy5qSbWe4w7IYJz39kUnqhBITkiqk93dQe5UqjbwNyx3EZqpeYWB
-zUa3Uv2McnbyDVEcd8vIC9RHWUn8eR/qbJf7foTkUw8Apb/SZgiZw0cSUNEC1xb3ElGgtWNLEs0V
-3w0vm7R1nju1ki4JearztBX2Fdg+9RJmar4wWKWuIgcJ2WDoVIQZVbhxfO0xRSG2pJaAGqyu9Q6B
-W1jAs63+mkozbqQoQ3pE4lHd5xY916HgW2O7FhI/kYsbtzeQOIQhDUqxBVOCPttZGalzbzBJzDCe
-nUkeSnskdHU/QyE1qrOsYJrKdnERCSnj2R9aAQpF67EddoMhnZHgzaZBkmFa63mJQoCuxy5ZGS29
-whxbJlZUuApTxYoLC06iaTw8BaRZ1wGVSzvbaORV0OXS1ld7by6MRJ6TEGu3/eC2a8LMJcImVq8x
-6MQVtPPhMyLslGGsSK6HMehcZ32HjjsobhEc54vUcpds0YOt1wIEJ0qlLinMqLl3YWWx/mzgrEg1
-PYI5tlmheKb4fmNmGcFFRFCwRzrzri8GwLWx58Kv1sDGY+03ejzi19wwE0K4RCU9qVzVvceY2rox
-JKmhWKyGkJ9CKbnApcc/DyKtbSfgRcQ6cdq0OFYl/7/MKX1p9Gxf7eeviZ2r+lD014eyjqryp78/
-d/+B8/X47iUAuOo2/XMf+v0DfUkp3fbZ4R9/e05rbDlogeunydfZJpVUzkmC6rVFr839vQNEe9JV
-9QtHHktV1dfXmBWKUEm+vaGrH6na5mWOIgpex6/6qm++d/a/f2LHbvz9z5y0ff9CSebMLyvmuerr
-kxeQAklV/ZHz/+YYX50/yBCMPyxSQoJK3vF12g2a+pHyfVO1j50hy8dS479SN9iWoNr8nd2gftRV
-KosRKRyvNkf8+m6gEBrOCRlC0h+vr2PH/4W6YSwD/4NPw/fvBsX+CLTa0ORR1DO+vu0G9SPlqgaf
-UY/v/wXvBhaw774bzI8jRYdu4J/X1zd3g/VRp6wdecVfthvGfPt7u0GVPyLbQdrFzf71w6ArHwVK
-OXR69vEu+D8MjX/gifl1iplSu/vyOrn4Byr2fjsHfe8Db6Prb9//MrKOlQrMHSefG6ea41cfXie9
-8eefTh6Vv4+N/+rN15+ZCl+/5suffzm/337zyXe9ndTbL1f+odgXz17/+kb/pZXn+5gp6j+fi8PX
-w76hMUT/byv+8beTNn51zX/3oNHeTffl24HG/mADwXV+94Hj/ZAm3xxZU35Akyd777TU5Cgme2+D
-F4cX+j768K9mWFsZFxjv/YZ5mf3yz8Kv0g83e3Z1bwc89jmOwW+/OK51/szVXKb+L/91ejHFKz/4
-vU3fjagy75f/Pmk0BTQ/otG7PT1C6oOamA8v9E0dvXXE2DOMrSP07P0n8OuXvB3seHQWdW+/+PP9
-DsntlOMmdGWU97231Rx3/8s/n04KqwQyvh/wfF4eimQfP9XPp5cUntwP6O1rn0t5+LDZJwe/OP2C
-41r1vR0zfsGSW5Iv4ZY5T4vqZGhkRSwoIvux3/LtjXmcWd/7HeNQsP8wZRNV+MnphUYt+wPGhBue
-2g+Xe+rM3zrk9cY/Lpbf3fpD4frZSd+zGqAQ7919f5s+0zMww94ONbZaxRuL1cx7W/19bvuvE/6f
-m013XMLyw5J5xD9t93FN/t52f1/A+c52X6e0OD65+8ZtxI94hH6/NvSd7R7Hx+8SNN957Onh20Hd
-Vo2RAfDv7r9/tfL76WSJOB+bdrqU/bcfYEU6Hvg5olk//Q8AAAD//w==</cx:binary>
+                <cx:binary>3HvZct24luWvOPzcdAIEQAA3bt4HkEezZFuy5eGFIUtKgAM4AARJ8Hf6U/rHeh87nWUd+9qVFR0d
+UXUiHLaEQ2LY09prwf+8X/9x3z7euWerbTv/j/v19+dmmoZ//PabvzeP9s6/sNW9633/x/Tivre/
+9X/8Ud0//vbg7paq07+lCNPf7s2dmx7X5//6J7xNP/YX/f3dVPXd6/Do4vWjD+3kfzL2w6Fn933o
+pv3jGt70+3Pl7rbTi+fP7h5s1RWVn1x1P+Hfn1+fPX/22E3VFN/E4fH350/Gnz/77fDl3y3kWQtr
+ncIDPJuk6QuJhEAIp/LL5/mztu/013FKXmCZcSJT9OVDvk5+dWfhBddV/+zh8dnZXfdYuf7r2I8W
+9nlZdw8P7tF72NPnv79//slmvuz1B8dStc+fVb7PvxxY3u+3oq4/7/23pwb51z8PfgGncfCbb2x2
+eHS/GvrPmuzm1c9O5u+ajLxghMhM7s22/+ADk2UvslSITKA/LSq+Tv7FZDf/53/3z17dhfa/YK5v
+nz0w1X6P/wNMdXn89bR+5MR/01RYvpBYZBRSxo9NRV5IwjL4DvkyfhBdl1V3558dP7q7yv9sWT+O
+radPH5hrv8//Aea6yX92Ln/TXCl/waQUYC746/PnILLEC0axSBH7sblu7rrp7ll+N905MNzPFvZj
+gx0+f2Cy/V7/m5lsn6i/rVVPlv93axVGL8jnD0qf2oWRF1/KE8++hBGMf5n1S8bbV9Kfr+TH9vj6
+3JNVfynM/90q0PXN1yP5f5DWCHqBiGSphMryLVhg+EWKM0lg8Id22IOFY3fXAWB46J/dhAPneOLu
+X6DVD/HCwSuePAaQAXb6/9Vg/x5O/IW8CkgJu8+Q7RtE8fPRr1Dk4NEn0fRk51/te/rw+/OUCwy2
++QsK7l/yJCJ+DNu+efTxzk8ADyl6ITOUplxmGUGCSfr82fL4ZYi+EEKSFBFOGGGYZc+fdb2bzB5V
+ohc8Aw8BiEIzShhjz5/5PnwZIy9IxjIiOEklhlSb/YWiX/Vt1H3318H8+fOzLthXfdVN/vfnMP/w
+5Vv7xWYMSc6JgArKESIpZ7Dr4f7uGoA6fBn/rxiGueYjG3PZeLYbzbwVosw2KH5/Hc4PZoHlPpmF
+8TTjGKWYEJzuS8DTWbKpSkvT0i1PyESOMMVGWeyqwui4FT+f6nBDMBVPob5IjrngNOVPp2pFmq3p
+rLe8DKM572XXHbU9adXPZ9m/5dtj289CU0zBQoDu4fN0FopjY7nHMZ+0iS/dmvIzN7c+RzG1L+vB
+2rciTTEgvr95ipJnlEsKBZSCCzydtI+OOD/QNe+TadjN2Dk108m+xlPSnv58qhQw8OEGoZLjNEMw
+WYoP/WLYMrdJnsScd3Mn86pp/VvGtsYqFoMQFyWf+R+4Gfz7TlhilGB+uYyWD4viVeMTpbfavmrr
+WN6yqZt61cuGN2pzovfFaLP0dfQGd7vg+cAUcdUg1IDE+qVJ+dKj/MDxMATRwT4IgMcMC46pJPDn
+6ZnRPqm7ifM1XxYUSjXjLWbvDenJ9NbpRl9jMXutjGfjddMsPb3AltTVccbmtT6idTbfuWbY7rWX
+WhRj7NrLbSrXqqgHkrlfONU+Cp46FWR+8CkqRQa+yw7sm4TGVggPa17rrTnLGpKqZOnsB08qlqpl
+mMVZHNJSddW87n5u7+8DlIChEaVyH6OCAAD4Ng0k45gsES9r7ibxcdxm+3bCAb1s+hDyvz1TilKW
+ZVQQgTJxsEntmZ0qmW55t9ZZowwiZdHHehrURuPjz+f6PhcQylPIcFlKeYYRerorzdFq+2EDJ15j
+u5vc+oDwqIEe+FlU4v1bDswmIUmnWIh9m5/tV/FNCtVNHEm9hTkvE1OqdRaTqq0mqtXRnlVh63e8
+Ldtdimp6KYloH5mN+BdZD3+fkKCjhU4og+wHdWOPLL5dRNzmRffjNOeTGJJF2Q2V5ywZw9G28ebI
+llld2FJnu4AXoqo06c5og4xVC13JR2JEliPn+5NRdPbc9DoZ1VQ6djHhTgy/cPMfWGWfMxkXTEBs
+in3q+ea8LDOW9G0ZcqCQglojhfVZTk5+bpYfzcIRhqpLhKQZ33v8N7PoZU47E+s5X009qaGvcc76
+iH5x7t+nFwr1WzDMU8IowQd7aSJp+CTJklfL0F221OOiStyoFt+OhQ1refTzXZHPkfjU2yiFpMwz
+hvEeWRzED1olb+jqUN6Mg7Y5kU0zKpqN/pbErq92NfZpptK+dTwn6zS+MaEdZ0UZgfTXBCneEWPW
+sKtDZj5lvjayWMKIPmxJh0oVt3Vd8gbX4RYyQXI9rdK9S8NQwwOjDyeNDPQxhrnNlG06aY9Ku7Ve
+yYilyznN3KKggPm+KCVqXzVhrZgaOz98SPooTB7n2b+B8riaHA09ejfO7dKoVszVTYJacd31mRhz
+bqZwasuFGhX6Ml7zVoqhcGPI3qwejVNetSYGZdo6SZUNEz22m6ZE+XmehuPZLkuTI1HKoDzu5g9p
+h6RVdWy7c1QPUG2qhrNYjGMKrm1WgOk5YWJ47ybvb7vK+iqndehi4bOJ1sfL0m2XJC6+UQOBr40L
+t1GJxC5UpeWqzwOr20TVZvPhnYwRjbuMJ/WHrOtnnA8jW29lq1ladJWg123k+A86kFIX0gbkCzfJ
+7Va3brH5vLVMFzHrojvTHUU3OKnwsNsSM5b5AHgiVWlYZqy6ZZy1QpUVr5t5mTc4QR0eXEO2Wa3S
+Yl6EbcZXnamdVtIM04eRD8OkGpEEd+6yOfFHjgTTX2gdHYVUPKH6tMdD1oecUttWb/tyRIkyGSF1
+HqZuHOFhIo+TTUekOsK2WtUlJn2OSIfPpm5Dm4oDX0+nrl0yhbCLl5IuiB6VEy91Xo0soh2re0R3
+syPx3nAeUZ60Q1zy2s5NXfhmib2aV4NxvvSmew3hzd0VjjLUVpEmWUkxZzFOd7Rpsu5V3faCRlXR
+4FjOWjoup7Ib1+y8mcYyvcjcuF6UYU6WfFigoqps3rZRldbodlexxM9FrLiQOc86UeflVnUu91tZ
+v2Vo80ZtVc9lUYWp9xAWdVsrWTPzCcoXJsWKZpqCw5XdcFR6OYTdUobsXVNmEGvzOLg7N5fu09Sw
+JSo3GgjJxSz8Nni54YvgovnkVzYUs6/bmwx1+KbfxgEAMRL0AZByX6nSTT3apdiIK7FsEs60nbce
+0pnenNJYrFyRLaALLGUKv5YaXaFp6AbFvUbiKEHdAP8uHfgmXrdMFppCYKhGju2musjkq6GrybTb
+NkOyY+gHxG6bHOBmIaorT+v+vdiG+JDa2oLnuBjv7EhrrETTJEk+d062ahOiv23bCr8b07HRBcl4
+ZXdzxdo116m1dbGuzJ2taKnQVRc9OetnNMd90h87ZWIz1kXQpnlNaxmbI4Bl9WvfpyPrcrOO48Xe
+Yv1RrDRKriJrm+pM8MVWeSLJ1O30EiPgUdJMDJxR2pdDn20ih0w3aNV1iIMDt2jVqmaovEsiIW8t
+IiaogYtsytMRGwTAdaIyBwWhf7lCTMwKoGHY9UMPp6AB77W5rPjQ5H1GE6b8NjbHFNSL+7U246Lk
+SptNBQj9V66zS6+4LPnLsUmrLdctt+hEdJQvedClXF+Nlatus1qY6WjlbDNndtbDCXRvwim7LjgU
+tXHry5oISG/ZNJHtaIWGb83bdeU3wtX1eD5p12RqSmkgqnbpWBZgJep3cgvZOR0DtAe4Q/MbG7iP
++SIWgLfcjqY9oi33uzg2XVYsibOv/KI1OLUdarez1VLeQor2a+7Xob0Mkx/uUjKBhiD6NNxEGgek
+BhrbWxxGOKUgJ6sVxcx+MrDvexRcXx4T4/v7USA2FgP0YEe1iaxUSGTtRxpXO+yMaZYpb5vZGRW7
+BgqnDGRrL6XbmFYYNBt35H1XclXzRV8FHrqww0PNrxNS4/sKh3I4ykxppYrOJQOsA3GjxhH3Wukm
+Ea902ifieJFWvhlnJ22OtpnVBQXgKRSjbKpVBlrOY2KJaxW8PrvqOcYfYrkuUMjE1MhfIN7vkYhI
+ASVITFIo55jux79BImlEvt3SyefZVumzuk+203Kd1l/M8n3zIFKW0j0QwZxBL/90lh6SpEnBgDlP
+QA1DyMvTNk3rEyAlkp2wbNFqWP18WiZ++zL1n7zMn13WF1Lhvh+iq7T5U53768d/XX6V/D6rQ//x
++72+9x8/vZwf3RTc47PLu8E/Owrdw2fV7/CZ/cx/PQQT/7mSPQvz5IfvKKF/Q/p8ERT/zeB/khFi
+EpDWX33Bd4SQujPVX4z1Zx7o8wN/0kCEvwCGByFJMuB8oPUBH/hKA2UvGDT1jEObkkrov8BwX2kg
+oMsJAD2EkSCEU7QHe19pICyAzEWpQHu2kDHExd+hgQ77P8Q4xRmGNoYARwUN/1PvCW27SpOtiyJt
+MPm2DuLtOi1Lrmltbr45lz+d5aeM034qCR0gxymViB4Ac1ICP9CRFICidV5Bb0uL0Cb4F13ZYdDt
+N5Ry0CFgMykV/KDv3/p+dNAALIDLUl440g8XBDLBy5/vBe+j6ls0/nkaAXKigMhjgMmfnlu61LOr
+52RW08zcSb2O8WKqeLhiQbNjsybTrtYrU5NIB7U009ypOQR9ymoSc+gbyy+R+G/pjh+ZEbpACs0I
+dKJSHCSBSnTpNPVxUX1cW+Vp056viHdHVTvUl7/Y+o/mEnC4YE0ETS87aK73MLHmEewIKPNNaAaa
+9z053srmJKvYCevdx1AtHwMuTyta3nQsvF/7sojJsBun5hSgxK/6yu8acTBGhtheCgQWI4N27Kkx
+snLMGir0ukefkjzazq/NGZTp4HeiNt4Xyzh2zVFTbTa9xmsKKU2HpN91M8Xp7ufH8wP/y/aUL+R8
+TCB+Dywx4piauHcMM2XJaQMmu6CUhl/E0g9s8GSWgx2XbktDXZfQ3onUqTXr+0K7bShGU7fFf2VD
+EgI2BWYaKszTw3XOV2XXQkCFTZujVK7J0ZD2Uv0XZhFAFENjKwTODmgMqeeh3WoNTtXX9cel3/xV
+MifZ9c9nOayVe0fZZ1sB9BCwbYfsbUK4HmbbLqqpcA0N42C4igjrnaZ6ukBD1VxAzzuckbme3/79
+qUUKDgGYIs0oPdhgl0C7tFg5K6K1uVwxW+5WjZNT1lbslU3ktLM8y15liPNf5IbvPVIAbQCxATgE
+OF15kKqSRWcscXVUtaDjZd10/YmR3p/83f0ButubDgG3Qzg6IMYNGucMDdAgh3S4Rhm7m6l4U27Z
+2Vx7r5CeTjh15z+fc5/LnyZhAYeZSnBMaNa5ODjT2aBFj1MXlQRmFhoUDOj1Ug7b1J0MmFRZ7mk7
+mAKLKnA1+6YmChpIWd/+fBmHXBCkHuCXwbdAriEErpc8jRDmqJGygWWIDFZB1rKGNsKMu1YvOqeT
+G49/Pt/+fYfbpqAFYMyA9Ev3GtG3uDLiraQ6baEDlluTr8CdnAClkBTr0AwnyHZvDDQuJ0ES+Qsb
+f591BGYYyFtCKHgSPpjYbLSGPnmMqqRNkjeoT4qGenk01DH8Iusc0pr7M2UE5gJYKwGhHGQdM3TA
+tiRDVF3r6ybfStSg3ZhNMeZ26ugdrjecnawuWba/m4kAqVFQDoAYg9nxIUuZrAZh6A1TxVZJVOLE
+uBuarPlFUB7uD0on2A6st1dZ4MrRQQIXaYstGjRXoSzR9Spnn5c6nEbCZ4Xrfr2e+/gLZAQXZA4c
+Zz8p+A0IcQAbIQUeHCqeo42UtFKlC67bs0rMDvvczZA6Hm1I++Vqgvtvq+qBIFutGqd2LE8n3bXy
+TV1Gay997Wt8LYG5RYUWs+xParGY6aY102ahubdzUkTNuu6DYA2qGyWz0iYnq+bjct6na+nyvg18
++dhNdE6RmgJ00a8ij1k95b2rtvEx8RLoAjWmfpCXsp+g53WOGHzW6IkEB2QOIuQl1ch3R951KatV
+udZjej5TIIEuUx6W7NL0PfScwVJwHbZVsMmKbBAcfSDZH6wVpssnPDG5q6c0SfNMj3AoXQ2Umppc
+ukyvdJ2M8cNggLQ5a2RFp51kbRkvaOeCviEgHVVKtlF2QMyNCVFGmCrumE7MkPtGL3dMlsA/IUo2
+rkDP2T7Yal0DEHiGxp3gYex2QMesaDfA4WSFFbrsnEq2YbsNKaQ1xcNs4Pwqnjjg16qRnGyN226Z
+a7flOF38RlWgsvokkwxIjzjF8WUfMjggt4z8YtqqdVCuBvUq35IkiHMJdM/HrWIc7UQlFppb2bHm
+Ol10M30COOQNKuqwmuUa9w1wRbsxtgFa826kMX7oqM2MOZJVUw5/jCiYU7KSNVwty8wCNPRx/DC7
+AWHV98J+XEZaPjRG9hRoVmtxsfeSSmG3hPtlm4B0S8ata4DMAvr2fOOpcapuKbtamfAjEDtGvE5Q
+bzbV64EOl6YsLZy3jMkRMFdaAOpZukQNA95atQrHdW67JPtj8B0FdilgPuaTTcIdWp28Ac0Wt7lD
+tASajYEKkfuFulr10PyAPLm022u4uWTrY96ZpINaUpf31eppr4Bk4aGwgys/1iOQMmetL6e3e95s
+KYKrGlyU85DcLtDY3LQTrcBelpJ3AzihViFWWKtq4Pp2LMsJmDoUmltdVcGANtN1LJ9SXS0XTYzL
+FbKROSXMzI9ZnBaktMXt28ywuc0nnpirkjlJFQjgaaeamoMVfbcn3YGTM/1u8snWHpNFxxuWtVjn
+6aCnN4LvE2gl+rVUlXXbu7Hi/WM/+9kWkH+zfrdS4WZlJSO3y9BMSJEO2dMVw7yqxxaOsZabvBxG
+R2yeDeDUqsVrB1kLVfxsm4fYKIrmAOxt65sAlZbLSiUMaXcs8QreuK3Bu5MeWEsL9uqB3yO0wlHR
+tpEPIiGVKYIhQHYD7T1ghbNmSfOmjPSy5s0gd0lFmipv1rHfFLUszAVo0+MHkozyvUhc63aJddUC
+ugvBblfSgXd56FBWKui07FtfbbTNgQJCk2KQH1wBbXc0hcy09hBAadNDj1YBo193YlmOqmxZjUJm
+YVJVyRbbnHpi+0uchPXWJKZ7aXHDgcdMJoeBTiShVf1mJ6JWU5qoBtGBHhLDtjzoEYc8sJLUoLUN
+3JwN9eBvLTgPPk58BD+v8Lwtu5DW9iT2S+hALmzYH7Zpg4VFibgpAGzAF1mJkx7ABenGQlcDuDgo
+BSXOcdQp8KVyM/Z17Cs2KezxXBdLmQ7r8chNBgJ3l83TLi4hs8pwYLBVRtyCdysJ7K5na2VOEbDg
+aw593Ho7zj0C46ZzOhUGz/NlK5ekPNJ1DxdFBr7Z26mxybt06ppFlbFsdbFuoQKtDUkgHWNtHeS/
+2WyZ4mIYXqXlTHXBAmoeugq4wGSy3UUsk9LnYzJrpCCp9CLvWb++WXxcHpfZi8vF29AXEc6ksMBf
+UahHmnxAvkJWzYCX111nu+xKBLHhHNUEdBvPm8TCzJN7D6ehGdxFyMAT2gWBgNTXw9QUHQjOY540
+OjDw+BLJvKNQK5TZrG93IsZ5yru0SxoVY90ilSQl0yeyFAHenhh/3DGv9ZWsJ3tFx6wOecZlT9SQ
+OHZtMhBMQWvrZKPKoAd3PG5JNCeoBGr+Ykw39z5jI2mPgq0i6N6tdb3y66gfglxTr0bdpXUufL2t
+yk9irY5BAcEg+IgVCpzHqJwLDVn0DbbgrUdMRmNU1c7TQ01YaFS/zuxlk2CjVQ9Joi0CapOqAPYB
+jsiDUgRFHU3m3YL7IPNUB26VIGwAtnmBdiVvJlLf4LRuHvFaizTvAxhbhWlxuECuite0GizNF8Ij
+LWiE1Hnisq17VfUTewsu39OcgvzZqHGwU7mDsAP1EG41TMUatG7yiMUANxkyAYMaLeajqSN7XDlO
+QAqZphqodOoMLuzWsHg+975hu2lwqQY1OqXtWZCRRAVVsnufusxuUC50Kk5AHXE4h4tR0/Ym+kS+
+gVxkSb5m1RBAld/kg54QuQfyIPGw37VsVAradK0cXMa7AuxQ8dylHn1aU9G8BrfnbFeyxY8nQIlB
+Fk66KfYnDiU+KDnX4BupDebabRb0B7g64iqVAqvwxgEZ/QiE0PZHRfcRtGm443Ls0jhB1FV1pgtY
+kH9NofQleQZ3jGKu+yxLT6Y2Sx+HMkp6lGZQKUGN0rZVDTX6QWSMZSAmhPJlGmzZHs2k43XuCYjN
+iuM1ezvZoe9VGMk6KgsrbhTQv/StdoCW8z6d0Mm8DrovoPSJq6WKGp9qsEl9xHyKjrMydMfUzFNy
+BE3Gek+qMSOvG7gkArEOCltSED3xTGFGIZ3TxLhBzSnJelgeX6EelGaFYtQmAlQjXspdz2J3VnVJ
+q6FyLovLRaB6PKuoJStUDABrKvKFUwX6E8hyHi3p28wRMqiBYfspHUTt827UcFx0aOzt1vW+U8Pc
+VXo3IpSUkA7GTu9MU9rhpQWCKz3SaNJLQZBvxjt4l1130tGsKhha5wpqk8b2yDks4ZVd231ak7QB
+ptwTlpyhPiwYAiUBPVjZ2ePp3eYiHFHZdf54yUy4A8k3voGrcnDPyS20dTnAP6kvx810y/FMWq7P
+QeYt6S6yTmdnCKilh2lIqckd3dAHafiiNqL7mM9JSVFeMxDp1QamZiCO4GXnV6tF7ho+nIe+y/6Q
+PbRWJ9gvXVVkIMB1gCa9Lo8sa7b3/UDIxZqx4VU/8BFo/WF1zQmqWcsKMyeyL0DnG3bIojIWHbFm
+2HlY9kfTe5meT2aqzhvUuPNqtZC+eSv4cAw1GQNmLCfxEtr3JU+lT0+WzsimWEmXvq3gstQAehOv
+3td0WF73GSQw4ExmdL95j63SySzuNhwNYArfkFsBlxFc4ad1Xgq4xgDiMzYmfQ2XELpFeTD/eTZr
+88Z3gJhVHDd3PiJjapUMm9/BZZZGqKpidlW0S1yal1DFTue60TfVnPHHckqmazO3/PW2lfjGidnm
+QFfTJs+qdQb7wJ2v9yVcwjnrZjw9glJsUzUtNQXgIpPtKglDC+q9Y6ZTPe3Mm9HI+daUdfexSjc8
+HZWZmaIyei4zSCM6u4Q9VB9DXOk7viYzXGpAy5YeZ6lP4nGUor+J41IJuBY2jK/KvocYzMAjwfcb
+2RV+G0Syg5odzqkf2MelqeQj8E/9XZqNgr2ES2gWsmWZ9G3hTOZPq3FolrPVrtPrGRJdl5dmMB9Z
+ufpBNTatrjcAGHADwFZQ8lkS31CBNAzVMZ0Aa/Z2gd3C/9kCcRyA59WSotmrBNS4WpkRsS2f5gFG
+gVpoWoVAUV2LxCbLG0ndegUXwZxVlqbQytBOQj8CaIy/9lVsKwUcLhpy3YQZtDe4ACBUnfEp7ghI
+31yV5VxD6WmchYQnQYWH7yfjp6pd4EbgBN+8q+NGzr101WM9z1EW0GfXo/IgcKOCdUbwfFz6BjQ6
+mbqbHkpgC4mH+Afbx/ZdSDz0FhkTHF4xjfQY2p8k5AnQ3tcTE8HmNixpk3cN0AZ5Uku49xE0QtdV
+NcPlU8Lr4aX2M6KF0L1pd0DI1/1Ow63FIRdlD8ip8p76E7O59YZXuLmmxKyPo0/FJQE1m+/4NM63
+dqhCmSPT2evQODir0EoNjWuTcpNXiRBnvJbgWSgB+kdBwxkNADDIskmg0eZhrgDsYECa90mSmvHC
+It6+m0bLU6is3n7C7Wakss7xOxINMseUaLBo73ryYUPY18cGYA4vlqbFAA4Ds3yXIDamUHZX5otp
+GAkQfKy+9ZpAEqxKuJlxkphqmY7Au7urmcGVn1OQNTgtbCXj8SrKslVDnbibFqL5DJCaJLskzWC5
+DjCALhYW25uYtXCugw/ztRZiqo7WBm4N50NVZZfQt5p7lzn/bvbpAAUB7kagwtJxGFVSpjOU2aQF
+J8fV7Aqpk/ZjlM0G6KXitYDLFrZ+aOcuw7lmvK0BqzteF8a1stpZ2ur1zNWkbnaV7kFhdoyOUPsx
+1yc2I7D9UZfz6wbuZ9a7Bu+RKAJZ5mMD4Vjtqi6Ln+DN2x2pWycVN1taqQXBnZu8HhLfHvP+/5J3
+ZstxI7u6fiLu4DzckqxRKskabMu6YdjtNud55tPvj1p91lZRFcVQ3561orttSxYqMwEkEvjxI4pz
+x2oE078PBYknKbdm2dhd2lbgjFI9fC5M3qDu4KfVX3mphrzRKVXnIAt4ABMrpKGy1UD+Bds+9jvD
+mcTGOKqkO7pbfSg9XqMp+AC8OFDVfSQYfmL7qhX9FJrB+C3EaVM5XSLGD3op6rz6hkz5YdayYO5L
+tTQ6YClBF9tar3vHEfCsBRomTXwnM3P+LSR9Gh/9QNAMtyhaU98MwuB/9etiuBl7wCiOGcStVG2b
+so3AY+XTqCRUC8IRs2+iuhtIOESFvx/qyPxhhJ75PbbM6kWp8uSRaj/JRVLkvJPiNmxCJ0nToHeC
+0Cp/93JPNBhWSZM4wZTpppONhP62InoK8XOUKaCizYHky1Dx2MstUScMH6rxhsxFX2/iyeoex0gW
+Hq0mVAe7qmueXQF4mhcdxMHfmkAQyiOrlwGt6cSjg2okX9o21KqND5zEdwbT77RNokr539kUqn88
+r5zREd1kBXaij919LEm9ZLe8yiZXmybhrilUEiqporY7mTfWYGtyCZjJJ6WTbTGfiFurrIXMjQhY
+IicfBNXf6dYkhuikF8q218tBwqtQ9r8D1fZFd6IYB3yS3NW4rVLRIrHAnS05PCTnCFL1BM3xhSEp
+ttxz+mB3fSWnO0mvrd9gWkrehY0h/xirWo42RdhFv7RCCyKeJUqQu5kahLUd6OBXlDj+2nucSQVS
+IbVHIA+S03W9o2rT1i+7PnE9r+9J2Yi+VR10vyon3qBD0JLwCrobKcv7CCVSq7+MXPB+Klo0PWDQ
+cjI/BvXXSTArxTYATfxQckIgck9yHdqlMHp/ROp43xV/jnSbUPHuBIF+AztJA4HbOzUl1yKtRfDf
+9NxuHvlvV9Wt6jRWmNmc3+HZb2pi9i21kv7HIORFZat1I/rsZgZ+Lcia6VAEefozIT75AsCRLEeg
+UTGzE09W7kwvBOXYSYPibbsia4ptw8trxOVGfuKO3MW3atO1fubIAZWlaNunuvb3W7r9/0eUw1/v
+G6Xf973MqJErGIezNrAZ5DB//z8QB9n8HxNUqmrqQKBFjeP9L8TBoEuTqqxMt4Qh8Rqev/QPxEH7
+H1m3wD6YdLNYFIx0EuT/D+GgKP9jAHIlW23oc9nRMv49wkHTJaDVFvIBhFNPUJflL0Xws0j20epS
+axLFmWhpr3Ztm6n50Z+0qFkB6p7n2GdxqqqYlH5NWVGpTs2J/3egn0IwvDZu8GlSXI/a7yGJ5yRl
+5oWC+oTnr6a/3p3EKqriTZ5Gec9khZpJb8hCnhhmQPSScsBcxeyxMRT9uQz1aLciRTyvIs59PDI1
+A2rrEsdMW8UCV8EfSaQXpIebw/32fu9ut7a9vTltt667PTn8/uTyb9d17D2/ck8324N94HtOJ357
+dF2+tnePfG1z5Jd89/ZwuHf3fPXEXz7wrY5z4KdtdzY/kh8/f8s25+8fnrf3hwM/zebH2Zv5y9vD
+1nnlW/gItjP/Cb/mNxvbdvbOHrl8Lz/xy+6eH3/juvyoV/7ksLE3G37ii3uyD4dn+7Bx+DubzcbZ
+OI4zf9uGv8/Pm3+Yc8svTqyET/Q4i9/tneO3zXH+1s3xYG+cO8fl16x6v8tZvMOn2272t46zPZy2
+8wfls+34m4/OT37qnm893j3t90/zNrFR8992T6fUnsU+Ofzx9SOTV07MWlR70qiqVTGSHk7b+9fD
+9plFbZyfzv7oPK1IWvTafNCNpYk1dZXIDbqxdR9eft379r29+XHniPaKHGX+xP9X+PwoByf03ra4
+ninYz3I4opfD4yPn7LDfHMn+5uTeOM5KffkNxX9N4KJK50lNGU0IPLmvz2gL53T9jPBzK0uaD/Gd
+uyBiNrwuRMLDzfZmVujt6e3//Pf+dYtt3KOrp9fT9vV0X9oYzun1lbO0b3co1uFxd9jtdpvd7ta+
+Q8OOzs0edf5xe/umjre2c7fnvLE8zMJ1Hm4cG/vcHB+cmxu077hfqQ+vKsKiQEwpoPMi9st9cZ+x
+G3ZsTavfitvXjmTe0HcbNuHJMw0RN9vXe3+DWWLu97PBs22P/O9g7/jVbNW+zQqPf/aF09t/3P1+
+/6e3H57WVESbHey1D7RwwGljKlE6K+X94fl+6/zZH0J7u9vOm37a4uPcp9PsJjkYDmJj4wOd+bfu
+/fbZfT48ntyXHN+2s19ufm35ASzlfmfvnr90bJ+LF3k87NC7zRE9L+zN3c/IPj5x1K4r2+4DCvFq
+2V83d3iSrWvv3c0Dfuh4mh3MdVV9a0K7ts4FyiHOgeFLaCoO+2S/4HM7m8/9Y7e1H//jmVkeTvTG
+cW+2fIgNfvf6J1Ckc7zHR/tf3EGTMfZjP2/1C+79xC6cZr92enLvXefmcMBb71+xFpw1Hp9bYrfZ
+lLjX7ZY95+rZz7eA+8LhbF/dw/09Dhu9uX/0bfs7WrTlTLglNkes8AWvfbTffNlhd7g/PP598O2/
+H+cf+uv5/jW0nyf7l28fcHb4oftHfvv332gjPn/v3D3hY/nvw/5p87T/4+Dy90/2M7fIYNu+vcNU
+v9/e3X2/O+43Xw/H/e+nB24K54HrwNlsnlz75y0X0f7hxn3CRO3N8XiLzz7u2XqXXX3bZlb+h+3m
+ckUid8v+xL18unH2mztM/e0bvz3xx7NTeHJvHl5eUETn98qJXPdeUAmcGyNF61wwuGK4JW/4B93d
+nVyuPEzfdtzjfy45Z0UP6GO4anLyzOPy3gfEnWF09HWxQbOin+6xf0xtljrf3qWNFdm/5rsed4ld
+HGy+Ee+wfZxvZQ6ag+dXj/yFg31HQLDlV/PfPRx2d/x3/8SmuUfn4S2wYVu3862JRd1huYe3cGF/
+PGKQs6pvZx28387uNLD3qBDbj7feuvjjm/kY3f3LiUjH3d+7/J3rBzDfDv9nk7SCE8+asgQwjDZr
+MFfz1985Q7okeIe2GbUNWaCrpSk6B9xHs7ku5fyU/5FCvzqATxOYsryw/NyrC89U0tr2ssjaeC3t
+EFU2JK/+MJVuGFvC3XV5H1c1I5/FGUgGYJoHwvmqyG0ZmkVZ326peW8BKwzbIKH76fNSFI0Objr+
+dVkTF6uSWjOMKtEDeaAG8ncxLNNDUwxrXekf9w5IPjBteu3hR9GWYXNVJmLQGBZZF2o6BsXagdbH
+uNJATeTWSIeRVPbB8/WVnT9B5vMCcq4BKwJsqBGuL8IkK1OownVjZedlJh+pb2i0G8XRSSRF5H5a
+1AxqlyQgAvMTYbGJcpGKeUou1M4T8sKdlU1bcqTUgKM0WYEvXdhJHdQb4G620eBleK4VWkG3lpCl
+tL6HdXRoqartdZ5vt2quWPd9lRv760u7oIXv5S3BUmOTT7neIa/KpKnYp5JXCJuo08MVORdOSwd3
+bwHmY3kf0INeak5jSH0dPBEsDE4UTdHoNrQPvyp+V64Iu7SJYGBNqMtmVgpz/vo7h2GVlU6ReSxt
+f5Rjt+0q+S7Qdc/RVHN09cFUVxzUxcWZ9DLI2Bm93wtT7tTWI10sl7aUtCoIjEjehI1s2H44+Sv2
+fEmUDqCKFi5ZIlZYXAqSoGl0Cool/UFi4jZyot9RTpeB5PjVioGdh3xvBqa/F7UwsG4yiqqWWJU2
+5fdBYPg7E0z/N0NS1FtqUeW3ymxfPq+N70V+2MhQoL4rsZGBmDpq5WlbiO/8FXO+pPM62EdKy6oC
+VNg8Vw/yr0FF12llF6HVfonzAqSWmSkrzRMXpaDsGPPc/2IuogZP81TKbkZp5zWwLmXI9W3Y5fpK
+yuKSqoOrVElKSZYBfv18LZVl0HRX6hQh6AnQHdNK4mOip96ftKiDZwt/1awY10UNBMtJlws/EYTs
+ucRICJIq1BU66MmX7ZKu/UEi85dcysbm88pgQNsA8wAuF1DCuSAahwK/13AZgScYTp/WpqsmUrNi
+UIvX76zmJHUs6BrgsJkvkoXHDQRw04lGGbBUyA/XGU179C6Sqy4Kf5f1M/ZF13aeF8c7RWt6wS67
+rLUnkfL3Z9erYzpUWmWNvn6CnvP1WmHKw7LjlpEyABMPWa0G9SFQ2nQNxC7NZnQeUCFJJ9ahC0HT
+pGXoMdS+GUhDXoHaCOKjmMjdtiwL5TnvqpOvCxSj6iLfVHEOzhv5zjDGgcMZgCa1Du0olCuh0EdP
+A/hZwiItsqjg6xdm34/ER0IHvKMQTfgbet9K6fFvel9xe9GntyisOv2xbhsK5p/dcySDTFbfuIo+
+hEejrAxpK3FTDApFy4pCmTMpbbZyshfX907KQsXGrrAmv8Rp86zr6AhOqISWnrBLVTCt1o886stP
+uzjWxQGzcTMzkbXw3bQRZwoRZWkro1nRTzyoDlw62crufXQ+M2idhiRQeYDXZ4qn9/dslsteXBsN
+zfO+pT/m5lhSKKd+K7ZJ9KsJq2l7/bQu7SMqO7O4adjJ0iN4cQ6PGwUtW48AG7pdaQo3sif6jmmm
+9Umm4A4SyycKXFnnmtzFOvXWp1s7pyabpFl1E/V5TjWnnU5RK1Q3rampjhhH0or7u7S5c7Qp0mVF
+t98bzP1dEEOPYlomVcbmhpL20gDNbDcy8Kxdn1kizA6Z0Hy/vr0fPbs1FyTmXkwia2sZC7aK38/o
+PypRXp25egmOVEmjDnzY8Pmwk1CaCIaWFrrrNG1hEbE6TXGvq4UNZjPZiPHUbodG+3wwbcHGRUBC
+IAgro7o4N0qoea7KY2ELEDftlFhNZ1Txg1jGmp1U4op2frzwz6XNWvTuwHpf1utBx1uJYQJuVQmN
+WHc8uZrGFc2Y45Nz901PFxD2WTvoyFnSjWHHMIQEU2EnnVgfA7g6dnmWisc81cxNYejd89ALoPhS
+0kj9500B8j6qVXOPGZHuYpFGPJgTMEpwH0JjPSWlJt9DjNbC36GVhxy0ZGQXgaetrPiCZs4Mw9wQ
+MsRx+two/H5reZPojSL1hKKSB7+BAjdDIUWgK8RO+LyvhhjsLbrWeaYs247MAtCy6s+ojiDvbnTY
+AA6p0mjg+yyAjJ7RUHmHKmZlWy8cKSkO8g4EInPX6eLurwLAswCa8NetLvt2EgK26sO8Pmq50t4N
+ah4BkrXAE4fg/a5b/Qe1nS9dOqNp3YccS37L/L5TW40SdVGWeBSQt4Uti5myJRfTrfTTfjhBpHC9
+wicH4o9IdRE1Vt4AIHtCZ6ewkQAFt9Hk8sRN9gpYdliu/1u2/fIfS7jSgk0OAlmEprwA6WyCRPBc
+W2I1VENtBoABTqM/pGyF6bUT5GSt5fDimmgp58jIDOhLJxaCKjF7sS3Qyhg6nWJUb0RQ7YeSboAV
+33JJFHww8CzQxU4P3sJfNr2X0eyTIqoEqULaQ3Ah/voR5OK4Et5fUgd4GzEBCfZESAbPN69MQSwO
+ckFbjSqGm0og1g162vw+fUTzNcPVyObR7Ll4xta+AX4uDHFhGqBtUYeQpsxTc8WWL6yFgHrO5yHD
+hE7yfC1YkWT6iZfTmz6CB9ct4VfXWtmn3+SWqJChpNWWK4Z7ZuGdDBn+EWEGkKpl622bGC6MmN5a
+h3TISh3m4oLeSZq//s5Ws5ye+mmktdzSu2+mkSmbTIYx5PrZzLfi2fXCckhNzr4Pn0t5/1yI1Axl
+ms+9GJKei7clXf9PqdLnB8vXVHqV+mHYXRcoyZckzi2uNFxKSF1o91QmUdKXSFR9iw2EuMYdsix2
+PKsDvRNoXrDPhs7fjKFm7TKxlP8Io3CsNdiJaFKKH69/nEubzEHqb42ZEnCK8/UHIoU3c0BrYiN4
+NVpBgDdU71byfJeEwKgAcR8d/ejNQmf0sp/CutBycGqVHDpjH+mNW4tWoa/YwKXTnCk1cfAWvsOa
+Pcs7lQFoTUvIiHJmUQb1ImRIIGKFraR1+6yBAPPze2eCkrBM2NAMTPxcWjvU+pB2OcxMjebdxN1Y
+Hgo8qPsvpJDsoFefO0tfJrWNxKiU0ccbRnVa3YL+SjeDpoSfPyK2jQcU3pCDWu4cHeQCTZHBHKMa
+wV3SW6ojhVrw2TQR2B+R7ANug3eN+VY6f3c+5tQJjTDrfhwq6SkdB9ktvMxc8bcfsxyzGLBBmkEd
+hVfbwnOk+pRrYmoA6Wy98FYYTXhqy+SYzy1gutjBwaU9FoLooeuGd0Ou+6hbRbFyt8ynv/As2Deo
+afJhdFgvg4CJlkqr8ROCAL2TpU0zBHX2RR00sbvV2r6npaW3kvBQdZa8lqK9YAa8BMBh0bqhEWIt
+zEDIA01sUysHzhcpsROI+uj2RXirqL7qtLXHvz+to1w8MvlnhjGw6Quf1so0j8BSiU8LAuC4tVJt
+jXRas4T5Y5/vqMSRkh1Dg94GBZzbG/lmf6gMjlUPQt+h1yE/jNlkHFTPClZU6OMOIsqE7oN3tyGL
+y8cUTey6WGnsYB5rIQ3QeVKatghu5KtFo8nvoE97b8XO5z1arg7Lm7OMuC+YLM5XF8S0nfilktNK
+kwquapXat7Ltp19laySuJGXyL1Igw00B4e0+pcPp9foRflRXSSF5Au8CwDMJr3YuPs1AmnY9bZ9g
+qX030Y3fsE6+ahnJqdLKwMWraxHlx1thlsiDlUoaGVZlYaV1H0ahLJW5nQkyD9aybfeYSrZykh8e
+GxYsXeRuMQRoByh6nK9LjhoQcDmkxRWI+MkxszB8KacxVd2q8NQvZdxNIXyIAfkiI0noeLy+rRd0
+VoNRh+crbRt41sWpQuBixBmlbRvAfLnVIJhtHMuTgue8rqBjvC7sguOjTMIzGYJccii8B84Xq8hC
+rPaNiOHr9Rf8YvwsebT9dGqVgOKtA+0ppoeotwevr+kf8DzI2YS6Lr8GlQrb4PVPc2HnqcWCzzQJ
+rWfA6PmHkROm+Ex0gNhxGWCuXdv86nVi+QzeUzsZvfhUm9/g8A0+fZWxCZTQyZqB1YRB6VyuCC5Z
+Kws0WRvVJIfV21OmndVJYb2y3ZfO9o2LmiwSaewl+1WaZZEH6jS3/br1vnZjpBgbyFO9GwDwrbG7
+vpuXhFmkrMg+Aq1X3gAU767ORpXlQGjobZ7Iqh8Lmj7v+swQYNHM++froi44P30WMTeMGxT6lPMN
+lDxVG42MdRmR4f2OGmn8ajZGt4thUNxTzAy+X5d3YWnk50Eca2QDYJtZPGETVQjTdszx67lhugIA
+eaeCvoDGjc8XLy30kYkA2rw0MsUL3Qj1ufmhiXJYbtUKzsOhhUlXmzLlIMkZecDrC7vgU01iKnX2
+cvRfvZUm3p1ZNGR64rcQEEg0HDleHtQ0xZUU/SDmrOXfdJ104q7krll5OV2SS6oRkfAHAiRZWB49
+vlIiKwZy+4zszdCG6h3UhfT/ZGHwFWb0/NbsAmEluLtwjIATCAFgtyNlJ85ff7fazujUtBF8XF1D
+hsDLsPIiLnPHMGp9xbVc0FBzJtoDlE3GGED6uahJ6Vuj69Pc9uppcpKW9r1R78x9W3n0yme+sJJk
+ubQ0ntRz6YRcMY/Fc3n0jPrlYEINkteqfpCFSXbpSM9p3QuTFacya+AiDIB7HDpA9pCFLZMFql7K
+jT/SZST6YXIHqcXkRqoWbK9r5kUp3LuaTD8LEyMWt72Y0oyra3iTMkpoMvFE8wYqhP7TeTB41KG3
+IgQ14MQx5qfwO42oA8pu+lggJdEGwwGFnox7NaKm5o70bK+RKF3SCrJT8zuGoOIDGbkoTnrVQv6K
+AjZPXTM9pDm0rjrxlG2UUblyUJekzePigE+RIuZdd764IqsjXSkw7mqEhz4LK2ULTYxxEIehuJn6
+qV25AC4cGR6ZLDSN58hckrbFhlz0Aw0Bdt/RGWZPgShDIJBL3loUcUHZETEnxcjPquI85uT9qQ0F
+Iz0aevOgv++MdG4qbF0jhkOX/j6verquiBd2kU2kLAlAwbIoTZ8L8wa4RxrfhP/CCrTM5eOUf2WV
+CtOsJ5DEJeuvBp/3jvCmkSklJqEyvLy2J+hshmCAdCXqQs+JBfrIZS8kSwu5qupVgz0MUu9eX+al
+PSWo1ub085xnmrfhnSUETSQUqQDNh1EnR5lK4iZJFZ+ue3ktub4mab4b3knSCyBhIIJosm+bsDvg
+qptkk41xVzD4o+Aory/swlVjGXNRdI5NuFMWC6PZ0UwCqNntZpia3UQD85dJ9yy31OpyIwzWeDTK
+0Pv+L4QyVuMNfsRraSG0Sq1eCk0lo9eYTQyBgXxNR/1roGfVVtRLZdvXgboi88LzDMdPVA02FciC
+utjX2pzyOlKqzOalJNl+kB2tYki+j14QMThTSV+1VKxcTRCrg9xDpXB9xR9j6bkihAsloqbnamn8
+opobg5LQptcag/TQyjDTJUHl/xS8sj1NpjB3nJf1SSjqlZtvtr/z62hWVyyFOJqEwvI6gtTLgj4s
+y2xPBjREOcPf0LsrP1xf3kcvwKsT+kYQrzM77vJ+7YysDUM5IGHjtcGrT4ds4MLVnmdb1Rvy1wbW
+qp/XJX7c0PmdS0oNciCZkuzC7wRwSQViRQTBBBP6scsw075Y7RT7dkVJZaspGYQzmS92tld40Rpi
+4ZL0tygeog1jjrPPjbQTcjGUoGW3xaIIEviPMEy713Kaca0eCnY7zLypd4tBLOI9yWLp7+ur/+gk
+FO4QevQoSSgymdJz+TrVCMJknIQ8xMqBf37GhQoHWWCa209LIkVKZogyzluC/VwSbwfZmhJuycyz
+jMzNJhMSfZgVhWardzNt03VxH62UWVo8I4gLOVPSCufiavhcoqGBYkSXk/I3F4gb91HsSrFHBq7J
+8p2fQjVV9NBkRKOifrsu/aOxIJ1UOu2vIpygS6LYptX1uIXyHKr6KrphBINoa1Emf9okZykmRX4q
+PcBLF88lLMQEod0TIfaCdYxG9Y6+bOHwL5YCCzlWD9KTsQOLjQTnJ4BIYyP7qfgCIN2DdkwUuzUc
+2AXLh0BMJlUJafZMN3ouh9qplvbwKdg+7NKuBQkTLGOpfwDrNxzhJRA+HZICNhPfWCjpIv2ABqt9
+eczL+YgEIVI2SWcmdxp5r03qD+qX61t4SRdBXcLrPScswaSfLy2NQvhxwpE73+jrgxiVqkNLa+rK
+Y58ciroSjyW19getioof9MAVK6ZwwccQxrGlZJ0Awy9xwUxY6IB9EHwz14TZKiUZxS+qmRjkMQej
+epZlQesg0Q/LZzVkcsjK4j/GBURYtK9S7CEDDo/1+eIhxi/grISMT5py8QfWEup2JmOMTsvMjhqY
+Yxw/0kmv/QuHg2CwBRwybmeZ+2/CsC79jkfAKJW1I/AJD505BS+S0cYrsevC3LE8xjSBKOQBgA8n
+sjtfo9fBGmKpY+iKfa25kpnUOynvohUPukzq/SNmnjfI+COc9kKPGKWYiqGizHPKin1jJa3LOAZh
+k4sQT5V6Ld5RT8yOsSJ88QZv2JZUOx88JumsnOhCnT98jIVHUAuxZ1KFDAXJTJMyaEa1IzDsd7mR
+Km5sTZtcV2DkmwdnaAAZN9eNaXFjvUkH3AdaRSKTSgbnfK+rPMzDyGjhP/P99qiV+rgR/bbb5mG3
+Vma4dKzvRc0b8T6CnmBE09IudFsLwpJGSUxXHup85VgXju9tQUwPmCdazdADa2EgAlSgGjxigeuF
+ldEfRRCwnlOPRVwdlDGyxCejaLxPRnOzUFD0VPnoL5978Re7qDCqpdJymLN6L/BPDZSHboYGrwSr
+F5bGPMt5hIVEL46xDJWZ8JN4AgkmiCRGM71ppUSJ9w3ULvKeVv2a/h+jwONfV5CFw3lbGqXLGaWF
+bB4j56eWe4YHX6saupCIRczVi4qWuS3GVPeQYcWDMVhOAxlnv/Mhal2j/v2gMtTz0X1wEQDt8bWL
+K7nqGkMVvEx1tLLx92LljY4O6HVlXxceHToZAMNQY1NB1RVqwQspbRLSvJLL0OrA+9Y5ML/k91E5
+wKipD8IGrsX5cVJkW7hp/RXj/2B+iIbCfcbCyZRTlnNPLGY9eXEED58Eh6v0RdaKrvwWNlDtqjb4
+lrpZqUZdkoddcOcTywFVX9ggtNSJ7AmF7Iyx2tlJP5kulA+Jo7VT5V5XnAuiyN1bpPABN2GHCy9e
+0M1VxcBp4OXqgo1XZhM0aY2GSyurlQP84EIZmMplzKBYHdZ9LqdzHY1ivYRBFTbUsRbzm4CBUzvB
+m1JHhkTosYGYBwqVNmKE1qDc9orWrxziB7ucxc+j+vQZuYOmnouXBcsiBg5kByU1Gf8FITZT3khM
+i9Adl7AcPlzf2Y9WwYhYatBcxNQ0wUmcyyv8IYZ4F7cmJ7G6j5Os25Rh0Kxs6sdVnUmRF1YBuZUl
+lLHCVDVBNBwfDlxGLIG6kwLroesUbcXPXBJHdnYGZtNEwfrOF6XBpluE5kz/aBRiFm0LtRrDwAm0
+hHErNhOiRjnbjE0SqtvP7+bb4BlyqlRJlMVuBqQawe/LgqOYuf4jiCljwqn5+FkhMJ1wNZDRoQKE
+xZ+vLoGZDXImUXVGlvPDEnO4k4asWMnAfVQMmh9EnQzcPPkYbMS5FNjiPL+PrMiVZao+mhnmkAKH
+0uGza0HKnCOiJEpiapmaqnOlD+Dqi9xClYnMaHfdhmK9pg8f3Qf0dQCogMLREsqokvO1kKr3RqU0
+I1fomHgXBEzJC6Fi3w8exfrrC/pwxc2IJmKqmcSeRqHlFVflc4dtGMZuSZvYX1Pcps+a5pfbMtIG
+tzZz4eiTRF3R90vrAwnBjGLSs8hfrK+a2GC/ZBejMCgpGQNjr2XoogdB6lcs+ZIoLIr7hfcKeZGF
+WmhJ0IW0fVHBmZTmfqaQcvLOlH6oAAw/bUxz5x4YJDLqc1pvoefiVIZj0ZqxW/RTvrPq5E+l6GvQ
+g4/nhT5QjgDzP1+bS39bKxKsQXS1ooDG+LXNp8mdBDW4pee1PokBo9mySajWamMfjetc6sJPePrI
+XMYAYnQFLup9V4TNLq87eX9dFz/GIhQ1yaBxbdJ+Tn3zXO21YYTFC65vVzDb8Esat4yMNIbMSdVC
+vpGCyEttxtApezVovJ/XRV9aIJcYL1vGZJIDWSxwmOpCEIZ5brOuD67eyvFt3IhrmaSLUkhqwy5F
+tpcWssUCoxbEk6eFriF33VYp8hgMmbSW1/2o8rxpcITKzJpFLU4+l5IbzPaQmiByxXby2l3eF7W8
+naIqTvdlyvynFZc4q/W7bC7LQBzNKJBn8YriNXkurmMSaVky8sP1Jhg3/bicHjItTNyomnNVVttZ
+K2pywQTI+gHBmfPmhMeLswoaVRU6o49c0yDaaBqJmpUh5Oaeh0qz7cCU33ZGXaeb6ypyYVvxx4Bu
+kMogL3FxeI0wB18lvOk+l89WyyLG9IUtKV2YtOW1hvkLm0rwr1OSw/DED6kyKxNHuAOZflk3jZ/T
+ekboB5E4aCAn1K062MeMAE0/7ZZJNMLZNV9wUIQt5+Qwh7Kv67ZNIRVUJYfckves9w0TJZS8++v6
+Zl6wBApXmDmJYsq5SwRV0xpUAQIGDIChN5xO6jQngYb73wghE02egzaw5XNYlAofPF+TMs7B6zdB
+Jopu1lvTyg36QS9In3CNUfcjZzMDXc/1f+DxRnExyl36ysuHhLQ7DMdVvwtGSf9+fUEfHCT6rs0F
+MaJEWnmW6DYYKCumrKSlC9G+8uyBzGJ42jTS4OrmXiVaLjd3zxhltS/K+DXqme2zoiKUUD8cHe8n
+oJIEyDMShEb68/XynItp+IxLyKzFmB5wYVISOfnSJVMNg7ueqjW863rI3GdmcJoVA2zhsE5FRuNI
+lO68cmOFopRKT1MKee3PMAaLoR76hLHk3wIjI0Px3RvjKIv2htDVwu8sjQTPdIRQ9ISI0cxdFkcb
+Jp9AIeoEY9aVosvYvMaPdo0VVcozVOaWkDtMDOjn7w+mUmG6cZA2f6QG5urvkzzpyl2VGlX6u4zV
+pnXkeQTHJoKxEq7NSGoi+G2LKDyKRqRHFMeibnwZYKCkQJ61fhUZW1kNsxayeoYrWzYVNrM6icnM
+lBApQWJ+I70jqzc6fZTib6um7+lrzIOQAQ85LVFS5rAzsPN2icAUaT48czeORRWljUPlNuufpFHQ
+aZXMm8iDypwieexEY2NVXwdVqaL7KtcEZZ9YlkeCkLXk2o8yGZmS6iplPxjaHlpPf1I2cBeTi3ES
+MbFUY18FtdDvmhSola0zUJuhh3SmQK7L2IgSGuRxLDzRzQNPGR/zFhLg30mR6XK4a2AJ/F7WPGc7
+N6nyQrgDL5t7dw1TpQA7txJjFQKtq/moOsiSFwlCZRpaFUaXTE+FXoBptXxoIzb/Gc3dGloSPdQz
+B03qCorQWt81bzTq16KtkqB1SDJl7VOdRyRd7S6DkDfgKetZ0j5Q5GZ4hL+7iXlF+FPLgKkkEgU1
+shO5aqfv+mAk/tdQM7tS2MIe0HfJIWm7NngwgrboOoh9idoe+t7IGe3WMHZrjJy5KkuMHY76kH+v
+DLr1eXdlhdV8gwW39wY77LRJeDBrxU/+UrmxZYbICBAB1+7UVxGU8FEnau1Trgei9rc8Taofk5Su
+y0B0oAc3Ihif/zM/aWzLvGpc38p75te9H5eUtoVuTruziUjgJZiNC19KuxyDVLZMhaqZDfI2AEmO
+skrznX+mHoXmJHt//zPvKPL0mrYFYRwl8cVUx6mmX10dpqpz3s8t6uVCnb7+M7HI8prsmc7WIXGZ
+4vLf0USm2HiZ2+XhKJ6YrvDfGUSJAHqkcd9NFGIohq5+ayKznbZQZuOBnH+mBtVeLvnC/tK8oFQc
+oWiwjVicgIhkkZBV4o0CC25hMdILPs5+x8wdeJ8h1TZJA0KNH1MLuGkFujgtR4KHefqtBQJVLNcL
+alBAtpSPYq5ugQhBgmzXEkNaJDsSp6z/AcJSgIWcjnIvu5VlXwClCscPsGR7zE0//qmV1VCEjuGL
+k/ioBwXECXTtjJ4V2VMDRKa1cbBa+1cajRHzNWD6taoWauO4q+ujISWl2tzFuagl1aFqkqBodxW0
+237tdDwKmOJUKLqn3WZKpKctvEVhkAWHBm8dgZGWrAZ+ZPhrNEdWBYHB0mHbMxTjMCkMAuu/eok2
+tu0jo5HL2GK4j2X00tcKbnJsnNYzTYnmmqRgnIZmGoYbE9BQLW8Kf1IZfmONrbSp6xFKINcS+qj6
+kkblWO5LuDzCCERhM1OrW5rcM3Qnlal5bJto1P80RQghvyTGtfhqhHKdPzPzRyxB/QFWAnhIE2n+
+W1bwybbcES04/RB23Y2ow1r4PPJAbr+JTV4luyTxdfmmNuGicnBf4i+jSSE3CtuxOFQes4l6zZMg
+iOhLHx535uKddO9/STqv5chxZYt+ESJoQPdKlpH3LdMvDEmjpgEN6ECQX3+Xzn2f6e6qIoHM3Dv3
+8sr7hM2Dk9ck6h5dDVh71kbJFLzEAADUkXHTaD0oB2Vf3ofarCzuan+Q4t3zmX1/85kq/5084Imx
+AMtIyZl/FpKDS+j1luFDaPwzdmunuZ62Lg8O4UqZnqk68YZ3f/FiAd8DoIS+EYFKmidAHs1wA3st
+yB8I+rbbDeedft/BR5WvRUeo/Xe0V3H7WEObjh7nwdmTd7xAcMqnXlQRwBxttjO16kaAuO0wjR4H
+0eY/fTK54wO21ao92aKyyRePbM8zl7vYXR7H0Ou6/5Jc1iFLhSPfw7Hfzej/VNIwnU5FP3o81Twj
+jn0MfABC76Lb5vC52/ZhvypFLVnrlzZv1GtexLPTXch1Cqfo5ARjYd0LS6OQ22xf43r8Z+JtdX6M
+AsMOa3N25SKyaRbS+/JGkpx9tuc7G+6AWBwzNRkpSAVc1SQpq4Bdjb78daWOpT9YqNZbN3Q/0dI6
+RD338TD97t4X3px8wnh19GtEjnbFpdTzoJcpzrA9BO3Ub36AM8VdwPhxkMZ2PMexadg/R/cYbisR
+rH6KUYa4IMBVnOdYD6blo8UXOqbsUFVL6tWucjOFDwSPpdsLhCTbV9iKHFXJ+BWspmxf81W0/xWd
+JmN+kI0hinzR7qsrWBrPfJ5FPwOhMbbf07LHTxi8uLGT1intY9it9qLg/cpvVOlDiuP0Gd5jF+EX
+aLFRHxOmnqdm6+v/4N3O7YXurf+o1zV8ZOkUHMDvtfBRxO5o2XOcwqtuHcrlmUohZiRdBkkLG4hg
+izNhJvl8dKIccrvfJ2NwsU8Othbsvu1r70b8WNsuLsdxcwCN1XnppKUm7SDDiEcUQTA0TX2qwyC/
+obvZwGu1zf5ZCe7vSz17gzzqclqxYM9zexwHV53CeHPlSTpdcab5IDFEb0o7mNryoTzotuudzGAa
+P4yoF8sZqoX58PFiNtmQc8dkgTL8KMAgSAUyuFrnjJTvRV1OlYGIJQnBb44kxSWASSq7mkO1icle
+FURegB6tu+hCtSM0K7ZhiA13BNdQ6v7+VdnSewrPB4h3mY1uHwKesZ51MdkV5RPHnfc2+X1nUm9L
+pj+yjoo/QWHzfyXKzqM7En3CNyKEcyqrHh3JiUaH96GvkxWq+/QL9psbHd7ovLXqse934C6enGp9
+aXt2dE6LP3v2j2LLfDiQuU+ueR1MKzIQefVnstpbecy32Okz2If6/vd3YBK+qd5kc557XkaN0kcH
+uVOL4EvcWi6ROmoNjK7F+0zWoL0uSFW3B5zNFZ/BsbN/Bi02sFG+V/Xfnp+myqq1ESefre+Af22H
+pSgIdIftr1VeRrPTnmqAaR5Z87z/4O7jrkz92i1eRwUF+EIWZNOnEZUKFow6TkAauI2+V00Yl6fI
+q8mzSaYlnE9+PzlI+mBDE2gAE1ya0uDshdjmluSuE5UQHPel1U9rNLXBc6sK4uzXUNRz2tpIQwIo
+B2tvAzC6rFkXPnTBrlgj99Dze+q7YXe8i76o2+Cy9xuocy0h+lSX0QKuwmczCLxiNHOYTUT2N6cO
+XOS9h7Wq/4I5uKUi5sxMhxBk1KEsBv5YX0WJOprEUPGFURUUOMW76DoBQC3PccMZvsB16dSP2n27
+/oSErry3jeY+qcuq8g/dlCTgD/bC4bO4U5dRLUnSuFfsHle5HYNXL9im+KrL2QPISt8UT3tUdE6q
+cd5fW5NTXJp1hR9pdp14h7CXhc0InUqIXCxt9bANnvd3kkl5U4GakenswEziMEzqKutyw8G47q78
+M3rO9lf0Kk9SYeDfPXnLTFxBgMWhfVfjYJiNqWleujteS7hv+OG5+cK8csRDSV37si+CWBen96rr
+3g1AeIFa4b+bVK+KA0Dh2L/gpwrMaV/KdeJR7ZInw7pJfYSMO+dpgUZdXlSrGMKTwqqjUsMaU3TK
+55xx8C7yFvxCb913uYpfQxTbnPWJIeR0THyDGzQHb3fePeOQQRQURXsW1NP6raz9NdVxBKJvKhbO
+LpSNSLWAvhLdXozsuz4we/OaA/qRcS+HaHbZEBP0LLxfYSXMGVKprS86OIT6mlqFrk3xs9QXDBn4
+c5x6AWsyWckqPAss5RuyfvvjgY38r9T9+h/RL+UnBMvmpgvw5p18uvSHvV7US5eLxh4cHqj3Bajh
+dHaU372MSjicma27+6fIhnCTQidPxCGgoPDPoWtddek37fSCzh4Ue0a/T/cGT9h/Gtmx245sIOkD
+uKCQu0Bwa2XYeMnGyhsZVxSDHQ2qafzwAVWeYIqdZabkhEffGU8iGiP7p+6SWF3OUlEOz8aJjntj
+uIfSqer8+ajJqqvSUIjyoy7YnE8xrTntC8CDdTqYdsj9M0dxf4uJImfF199hcUVLEqZyr8kJwEiR
+/HNGz/5zZpH8m2RAZ2tqgL3Z4iwBomU8cZ9hsIPnI93Wg19Ce47v5Tcs0rrt8LmuK5suRem3Kp2S
+HXSaH9EDzYmrKJHF+CfOo/6r7TbhX/lsp59dJ4yrjHH2OJDDwRT4xOaK0pCucrwnZTm4r6bPDa9L
+vxd/w06vd+Eu889k3sTj4nvLYyKSVZ01FQ/2yTlgqzhqEZ2OVV0Pp1W2U3VMXDg1cD2r7XYdGuuc
+Grnar4g4UtgoYpu/a5+MBFJeOj885NaLzo0zGrhCqtg/J0caVuUhM9oLoyb/C1wUOOgEvuCn5vDY
+j9ES17de7Tn/4Kytd8DbNY/SMIWfpmjqlzIgIYOVxma6WsKCEilATDEwsDxpLhpMuNsBBFT7zw6O
++AI9X3ucb9v2DBuPSJap35vyvq4GiWzamu7HbaZxy1YgOOq4Cdk0ODeb5Vq0FjaGD0n1XwE65O/m
+6+Jx4Qp/CKHrfpRzEEM/5Fv7joZ5vLbt4FLrd/zmKfkr1s0aJagDm6b8XduVE7YFR25gTug3l7tk
+pA1Pa6tmuqqt/G0T4qB6cL3WAj9xqoCJvEua0clMm1nSeqiC6Ixy6X6EswpCskkmcS/HgNfdY+0y
+YlBFDw/cz/Imy8hGDFhwEsSoTWJLjqtvWeFQ1vZX0F19eVo9GvujB1F4SWc5z+eo5rtOk7mdw6xf
+vF9e6hTxkAGMlPf5EJevOC+al9VbmAPR+C1T6utkcNKcBIYQ2l1sn1RTBD+mTxqIkdVUXNlS+PKY
+xBQxp9G28ZwpkDGMy3O3uHSHqJlP1ibJC3d6Xx1MUHXXNRve8yW8m/Bvb3xxa2uxByc3Lsu3goJ1
+uYqKMXkqk3yDlTMpdgwm3wZ5tpXDcIxdG6mLwZUd2CKp5X8xJD5MQF3eXMsdWK9cFz1nYzD9gry8
+Tazpxi9zhuPjrCcDJvM9L+xmbzgtgvaUeMoDeRTPazZgmaCc1QXNXc6H/6XJJts7Tbf/Eii/eFYj
+i75pNQ+BlxaCGuDgqc3511R1e8263+8RzvQqPI2m0lHGFs38AKwLfBk/ocsXsK9htrOWdU+mm2+z
+Uu9hl5pYhMOxoGwPYAtJ5zIwKx8zYQmCHMh2jaKU91l+o/DlfxwtpzeJnf4vMsF2DaYQiOhcNslb
+vJr+PyaBzcO46ParDnb/sudjjhkqOe2vRSUiLQPPPz64Nckv/W5qYv7eZeOJEvm8HnPHN17qynzg
+m+XMYA7iBdNTQ7gHzb6HK4LTMxoeoO9CsiPEt3av9SaCv2abgtsorMfPplLyzY+Q0FIo8POXmkid
+Sm3D/DObWjB2HHt146XjMsWfKMwUyUuZFDd7MNhf4rLb3wLycCpWq+xyo5eCIsVxF/ew5VHTs9Y1
+iDDd6Ds+BNasj7gKJf9uT7MSgnGjP0tdQ5vczGhpgVgrpfnfq3445+DWbvP4FwoSIsXO6VB68Isn
+OKjLkapp6zI57TVw2zx/8JZwhc9Lf7RnbfFbtQ3S9BddSB5hanQY9Vnhs7B/FY/b+OmZTb6EeyI5
+u8XePfbdHL8Fhe9ul4kq1Iue6/57xmJ9S3xEvwG7rRK4oKRgvDuWQWrqcQOz/F8N7hNILq6AvCQ2
+kyM2jB5t50Rvi69p5XARy9fSGK6Otd/Y+glHZZurGRTrdTPRJFP7+v1y8DtXvIMfJpaOniGnIY0l
+QU4TVctNu3fzlGrZDCblFQ+/hFgb0I7DSvBRTUecNYVS951PP8EcCE35DIy8vhl3ghLOuUjcy3hS
+0U/Ryu4K/zpVTGMoMVzIcS9MlqPhgA05XwFFibg8xIHGQN8wECMqk7352wqx6Xtt5iQ8zXPvnYLQ
+UNF3kEirzBvH6cMZ1uQhxNyH174jkiRVQQsAMiH78Ropsw+AIqrquWjVrDM9d15DIKuh9ooJjfLT
+GXLb85KIaM3aVfuA96Rrb2RcbAlX4Vw9xaTwRmmr5yo6+fHinviN9U7lxqpz603iA3MR6+4svXvT
+AcLjdAPWSq8XCpXoJRLrWF6RGsnlWFJWlylnkbhISseaM0DAKDqMQcyWelBwyEiGZVc5cLn7CaJ7
+ctxtqa5hdo8BDViw+Wkitum+WkNutS4qkDGbZewuqgih6AiQtXwPcr1/Dol1hgO/obpZ7OyBflon
+Hu4GGufbLJT+StpGFmBBt/4bkWG7raN1Lg/0zN3dbDfRPDhEMczFU6IZAh9s789QefKlGj9cWM2U
+HdUilzuZe0V4iLt42L7ULpwp7dTMWyBioOapQ6lOZzj5yj//GgBYca7G5DsMqhGi+jjt68eaL+4z
+7Ov+YjNOyYuzm+UdMmLyDVa4KU+x23WvBKfLt6UX9Zitvmg/nIpbN3XouP/s8AMJXQqT/uSOIU9p
+Ei5rcxTTksRHu+S6uhiZdU+p10l3vymahJoFVLR+DuXEeNEF6LtlPgPsBuyrim1KVGlvj3Fc94ox
+h98+K0twAtHpOxRzO5b2Y5Y1ZagXuV10bBv+MYfeDPzVNh6i6eDsm72leB7oZbdmG7KWiV51ZDsf
+3OKAJvQpNhPGxXez/44UNmcYHuMaHuHRg+9HsbEO25oBf++YTEXL7GRiszvk2E3Da+7RtP95W+QQ
++8vvUHkXQbLqv0O+kHIKAH3wM2bMtDXb/+OuRdjrq0l6oiGi0wftSsIAx9E46rLNun0PHpZ6VTfG
+EWt3sMA3q6zYse1lpR0JkS/HWa8nz6PGwAFTYANudTsqBBrbPdXj4jn856a/c/2aum2rd6c97Ux9
+ZRbCkH5sG1wDqQXKysRNtdEdkXR+lM46XP5jId4uKcMQRx9CfmZ9aEcBW3TUSfFgNoJxUgYlyjkb
+XLvrIbCkc2ZBC/OOR8eTt02eT0+IKi29/dZ37u/x3XxWVi4c02Sr8b9XVNNgDV3z4u0yudeQOu0Z
+u379MHWF6x0CMiIe54TwRvK8ZxLfu3D1kKvccqEScCbPFaclYWT02pZ1gcejLgwE476r9lslFa1a
+wDUING1eAnvUuyC4UzT72lxXY+xejFrPJtXo/y8lT9WMs6aJS2YVsi84jCteqAqvTAF+c1I0omFQ
+nJfCj/cDwcQaKTOv5yKNCR3Ps3DJ7SdU3Nk5l3Spl8xU/fs+WsN/pZ/IhXOrmLds4gGK0qBpduek
+9kLthxGo48sawA1NXbfaJrIxZBMhwlRRm+lWY/jeyMayMaYLfwead48fVt2t5KcFGTrtOlDtr/Et
+ItH4B1Zk6yD4Mwohy3bdmfq54BjxgwDQzrZ8wj/qVtxNjSubL1CWO0NJmagX4MWBPraRSLZM0B88
+JLamcmK7aCxTMMg7c+atUZe577HXO1v01TQgmaE7RFSuY7ag8bX8kntPA2BlMGZBreVzAq9wT12W
+Lp+QfFxGGIO7UAgtQLZnFaNJbdGsH5aKkvdAHre6bFVJjWEKYYaDWUvz5eWb01DvrfqmhtboXnpz
+Ll7GXfqPeH/BagdznjBhdbpxPEIin273PmAAVhbB/Od/IgOs6UT/eMto70WXz68i74cGsPFQ/wS+
+4jrVxu5f6ybGe3/ryp+hJ8KD5sDP7/XWhRxBee+9mkaS12uYPl1EXu99wyWXQGwlzxi66L4cFtuN
+f6NOMJjfd0Pi1hKXDSvJRLmQ11YHR+45eY+CNj3Rqu4684tge8ckLf52KBNcZElpp7RZXFHfkla6
+k+sOJvVZb3G54fffwR5oLxp/RofMFqr18EcQ4uhkNKPxneetNZPe0U5/hG2prMt5cW6b+veksWWZ
+P3Zcn3O2zq65Rhxh+xYjcyTSvJrc8NYGuwyRZtrm0bob9S5/ZXfvWRESa2i47+LILE06RqHzNMRd
+PVxPeeRZBKbWBIciAtzKJIMYmItlkERlBSSsBAcg7ts/vqHfw4pSU2Waceqru5YMSxX5eGsaSMYe
+BdEkwQWXoMtcu80Rwr297UFnr0t0Sjpvu+HY8zvaD8r7NIxF/y8XrZRZZ8uBVtj4/VNtk2nN0Mur
+6ZTIjtAXz1bu40gJ4mQhLp+HifJ/5DiIS8Qn1kcWNuOtM1JkF5b0dxjYJlWcdawnmSraLiUbgT9x
+UNcybd1FthkPyfZullq8FG4NwHHbxvGzUznTWgNITqWLNfohJJr0e+TmuWfS7D6Q19t7DwNe+JyR
+XatAb/wqxLbu3PEtZ/LnnGt/Wx5aeLTtdR7O+54OvF7hiWXEoEhr8Rt4/Js1fGyniVrej6sEeOQ8
+iSrDYlt+dYrZLEuUIw2tGAHJAi5W5YPHNuxyHGcD4jOfkPgtVj6+382jqBgbJ3xUrlIDX3VBrdDj
+Bv1yFML0sZs4irOttjyxMfT1f7PvAKzfFjNd6zjkyoETOblZZAL7yRw8ktmECfkcEntbXlYSe/zv
+NUcepta9T/nXF8ztiKHx8oyx7v5eW+N+bKqJXfjnSlyz9N7/hNHK4JmQZ8JWayTgt6WJTJQ2TouG
+HxTRcNlOgj+5Hc1ASQu/NMgGFQf/0D0C1A5cBL9iMQT3tJMTbRah8c43sxPG4h2HmskU8qF3s42t
+86cRcvCOAl5hla0VKj9z5BwxPiqZ/x7Ikuuf1OpvXxYn1wcfCEILzUbTHSO2Q8JMDmaazyvZ6VcM
+fByIwjxCz1RLXXMo/Fw4WR/vwj9v7ux/OEFXveJSLf8uzGY/iPJ0y/MsTfs6AJH9Gfe+tClFj8PM
+H23uS4PFvbVJPKzjMTCJ+41xXO+pl9eEAECikOrSUc361oHuCq68ssvHw4wbhAeZxc5/vI92YHo4
+oBNXptko8XDeDMdQif/xyyt5PZE2gdxkO/mT+y2TALePcxDBa7ieomrHTVgtgSPoGHoxFbdFULd8
+ZpQBkVme1+3UL4vfZC2/3VXn9g5aMguZP0qv86PudopakU95kG2Mq/1j0AW2zrTT+M71njdjnhJM
+FHwIz6IIdUXszaeaBvYpUsLVWRIIsV1WY+m9YIclGcBxS2qDqP9FyM4u05nitw5IizzX903n64bD
+fe2eBUR1yS0N7SPdXR09OhNc9NMq5vZvpKmOsqpjWJ02ogi4z7xGv8yDDf5j54L5TKeWPkrHmX0c
++S5JMnRv/W3z9hs1ykoACc6ZNpkiiO7x6mp1iLmH90M5xwOHkggW1usM6RCnAnhLc86bIaqvPY4P
+Js/lMLtHOJXVC9D1jXFPsIrq2ONLkozzPMbKeg73zNsW3MOu2tUre10h2HDyLKC6wo84hJ23zylX
+JBrHwk3zMxGgKw8oPu5VuLY5aPkuCa9CFQvLQH+1zyVf5avegZuntk6qPhOKsy8zpQdHW3T9oE+M
+hIqHqfzN52jW0H0VTrm8se/B69ct+YAY1Wo7HUoZTxLqrsaKIfPYu5xq3r9PfAIckDLqELo8n8NW
+UWbxcnbeqFO3YsRAuAnmSHITJ5rYKhxmuECt65+bmdw3boMoP0pLE5FKElNPnZlFfRNsIG/T2Dq2
+SgtDMlHWdAxUL+INCK0OhvKt40gp+RKi5bJ3KYkOMR4o+bSrZrnZpNNXN1Rn4c2qnag7B6YzVRYE
+LaYaKgemNa5r3PHQGk8wgNkLHp4yCPoPsy18kMGviseWpuvN0hOw4iN6Ag72WOd/VFzojW3KPcIG
+xNVRH5F6x2utKVNOLTN1lTV6GxfWZ/3xzl3W/ls0IqiurRcGF2xfL9+haYKj45XLcMfoHs1rZily
+41Aawn+Jaav/NrTVn4bp66vUIdaJXJPok/mqoHqbB0rzQ2W0vJ+xe+AQQ4MlR8lsFsnBSJVtHhHk
+hG6u42dU9xyCS8m0nJtkjsasVtXET7FGPPpzrDuZduUkXxOsR59l49pXZ4jiJW29zn52BES7h7o0
+4pF6YsehMvCPj+L2j5TL+Kps70D+Xlu3ZgcK3wnOMTlStGyFrog8Crud3m2fIMATAMOogfR4xlw6
+GuPUXaz8DNxZ/vGdaHmUggY1nWIzfXtO0VGP0ATpQ46sednyASnp8sW/rihJw6ypzNTjWSGzmrBP
+n2BaozFZ8Oq3+sxdWH5Fcg1moqW33SfnaajCg8QJUx1yvkA3w5Yb8a7mPAdZ5fkVtmUyw9DPNYat
+9PdMZmmFH1imI0ipmy5m3Ikip/QrAVPNf8qasceFvzf3XUPledxMoZG1kHfbQ1IbaU+2RtYebNgO
+2RYpySfL2RI97jkXDNp4bP9q5ahPGgL2uKtW7C+euzlsrYhhfZHFVj95m3EZGrkrKhzXR68z/Boo
+00089/dmzoe7Vnr+n7Gj039k7OTLbMB59Xdjs+6j6Lf2eQoVJTYO8BpPWJX7r2Ww9Wzgb5V/J5C5
+y4u+K4bP0vS/DkR6EJWuxLjN58XplEjNknBfiG2pkZMQE1/CEFNLXRJzma5DN/8YFi7+hrSgBfWG
+z/vpUyRQTaBxJcc+XKs5G6a9+OPOLmYijaLzS9QokSuCfuV7rlqip9Nl8dxH66/2sQVMphldyvoT
+Rx1NyDab/yzO4jYtp9+neJpk1V/sWnXvPYIwD3TS2CoTDAaguy9+maQMnRhF7aEqb8tZd1E2Sm/k
+Hl75n05DKZcStEfJcLxxxNZcyDbHODQVdn4EQ47Fov412qdSruWGH20R7/Tmzb0fMOrmm6/FvR7n
+4oF1GsJzc7eTl547MwMefy1KvHBBQECk6pf4EDFUe2WoqD+cYvWCY+Q0zGXNWLl3eCa7MGOvhMEV
+/VqIKl270ZZxzmLeoPTqHrcFPMxBDLDBqdyRkg+8Amx5FDj23kXpa3vwy825WAXyO2d4YT9jHeQv
+AVUM31Moli/X31H5WYivQMy4wUajLtby1c2rIL8iknW97wYSY068ChxsWPO4K/sADjIKrBkKKnd/
+ZN7U6pCrYuvHGyE5W9JoLmZ1mBs57KkIt/yefQvzZLx4/jJyluOFS2bIddcgxVO59TmypAw+meOt
+HH/RWFz0Phv2zGKr/uysA84eK4W+5qNOWBsiryyzjZWrn4rnh7+B/PbT5LThP/jyTXgUo+k+f48H
+ujQ0D3K8qSQuo9y2xBqil34M8eqy71D6RccNJWLGM8wo7pqR5QLsMWF+t0cNNL+dQRxehHLvzSHJ
++0JTEsnqag86Jtg6x6fOAAP3x2kQm7pTSc/l2Q7t6vH4jP6VCtCcyLxx+oYeKlRPzmzr77Xfo78l
+fnAMmaXvvE37QFMUNKTuSFvitik8hx3DYnFyyvLQ+G88hfUNVvxvm0/NkPmdptqLKurzaI89EiG7
+xrmoPY2fye6InBzY9VAe65iSPTWCTjStkeswGyWrd4kpp4yPJN3BZQo74X92mOE4rXyu4bozzkU5
+DbwSDP6Th8nT/oNmAt0d8tVfPwaPW5OHT65fXgdqKK1VHV6bCe9X2iV99bpuyGXMpNbglh3slSfc
+eE55XDD2jWRDaUk3HylUjHB0nSt+uBGvhrLiRSW2wMj2a0DsA2hDZzOYigM37z5GlkjfV3/q7zqn
+sv5F3Wjn1Ak7yzOH66CyaO7nUuKaYCQICoh5QmOuVIf+6f4qiXjq4jRio9Rc2CRo0RvaKpw4gTyG
+vUBSWHQgJx952/iK94kfIR/xMc1BiPBh4lu1VtDMJp/x+C1LZUwPOqvCCK7MiD+XsQTTCu6Ncj4a
+HTX+CUoQI+168cf3vvbWn7XjDiKRC8X5UM/b8BwlrmhuMPpW1zWnRZtF629XhcbMPwK7TFWkEbXX
+Ozmk4pqtRWTsaF/rT1nK9QeNj791VJNKDsytmvh+lC0DYeiGO/0A+beorl0cjG/swengugz66g+m
+g3mm4DJ6wTJTCTwjllUWlY0aB9ZFwUhtumGddro1GM2XLGbctV9AR9RVeY/War0XHBb7F4WXwQ9v
+I5lPr3OhWAU5jkRwRZcCKf+TlO/13Ra+Xc5o8nF/SOiK8VgsgnRI+muG20W0i4+ESDRiu+IwuSsX
+lZS4wcqY4rrvnydkfIxVTuV8CewR3WGvVJAfMYckWKNoTduDnPAIoXT/vgBy2Qgr9LrYDFnMnRJS
+YUc4zVD6kpe5H+LHffFXB7Fy52OyoTyccdqut7uZdsZvOyfDAWFkeSowTS/oQ64amGnG6rUiHsE/
+LH0/kvqDC5AiU7Ubs+Ip4MgZXUXTH2MMcbGMzfOML0WUColB8Nig3xLjqPQe5RcDs+WKkCIK3Kx3
+PCRDJLguPBE7pslmIkotPjG5V9xNvoc0J7GRkxk37rTL3Wg8RCtfFM8Uj6s5liSoXhEm4zJhcToh
+aI4nHt/VOqQqDHW75anaON7RERn4XJIKTjON4STC27XX7megPMX+cEeMJmmrRtlD6xv5X7l3nIGi
+gkSTCr9lRpvUeIDThcP6aWyG5g/GRF8f6ertqynKtrwUFN5oG5X2H6PCI2HLuponcg672UU1dN3b
+leLmc6hN/ExccIL5CFJRfmySnZXO3ffmuzGuvL9l70XBoa6tc7kHRa/vx6QfH1cA0w7ejRgHe/9b
+2re5r8ZMOguuMCpyweZ1F05vXdnQ59bEgnLIY+LMD0zG5SPHARoSO2ZYcv2uEQLzm1geOKZ2k/m1
+wuOoaxKN1uF/94CcE5P2Tj/fcjSiE+Mjyt/ZxGguNpJV7QHDA/IgNp/hY2M/bjoMGN6GK5gpzr/C
+drF/dgQzvowxgctV4oTQIzlcRHx0V5/2k/Tz+b+28KaVgloVr2TsmsetHA03jA6Lz2Hetn9FhM3u
+pMZEfSVc0uMx5MVCiRjqeCCCpo7whW6UnBlPPGK3LAXvDVsMFH603uqbGX332euoWlOXaPhXVFxm
+NOs0b7d9vyafZL/g5kExDgZUgL3GsuyL+L+mbvevit6KT+U2eNqWNjIyq6s6mH/lvMBkThU1fyuy
+XYH2uDvr9pJJHapn9bvTMZkEs2jX7y3mE8fhxy+Q7a6mdfPm1Im8NeA9kKLEZVQX4zHWCbZr7hZw
+SnEh9yJDkB3uoI452yFyQucmKDpgA5W7Nv2Z+lG9DT2nMkUc1qPF0xz9GB7bb+ym9QN7rTM+w8pr
+xRFHeP4wcz6VGWW+S5tW9cuzh1f8j0a7eQlCdATJ7XjT9o3/VDe+7B6Hel2I2kkqs114sbHPUzlN
+xKDuo08MkG7m/Lz1fv20aH9i8rRuLK1szs60kdqF0NTdi1V8pEsS4bGSPe2inf6PvTNrqhvJ9v1X
+qah31dE83DjdD5L2AAYDNsbGLwqMseZ51qe/P+E6p9naO7Yu9XyjOzqi2oWTTGWuXLnWfyj1ypUb
+Ts3Gb8KB+Gj1VXaRqYPcQsftVdOitqoRHzSl4Y8D6DzPRTgVgoPWWo6iQSSN0Q8zBzixQyKj8647
+3jgAunCp/zSAm3tReRrwqaVZzCXzqbV7agCcbAQBA7yhEZMffTV49x6Z/k9EoeYy6zj0KoGAHHAD
+FUd5hA8C0iOFHvRYhgMXedVI1q5M+pguKwyhdD+A7/zEW6XA1DiSa+DzGuSgXppKyakTmIh2LMtJ
+AsKEIonredBkyCMN45baNNmmBivgQ1QBv3ND7CVNmgct1xPgGuVBHsvwx2CC7HWSxCDLhf1XlU4p
+mt5tFqngjMj8SXJpuwbxNldS/bOQygB5WkRDbmtBaianNL22t6G/gWYqDDG/j41w/G62uvRZp6El
+biRvEgU3sCyaE/hC+aETVympaSIo2Z1kNuYnnBvzR1GoNQBLee7LDvGQ8iHOcNkVlDQhg9dcKU/o
+yQP4BI6bXlQQr7qNhO574/D7iPcenOfLaepzMCIUUH/Wceg/ylTTQNSWQxrSiWWL2bKSCiNIwW7G
+XQJwAxwABP6rl42B6oJImmjDG2axA2HPTypg63LuPbpvJMdA8u1WQSdt41eN8bGJNGEgVCeSRu0v
+ir5VRRzeW15s3dI2pOLSe94kzAWuIbdNXZBFTDxU0v2RyPZE0sBTQwZlaTc5ZAcbYpX3Qw8oVWxr
+q4xUdwQLYYHzasZLddJTtC7E+YaJxDIJN2oXUJZNQHQoGyk1jZv53akRVNrpos5rv3K8tqO2h36T
+fFV3k/rFj4liNgKXIe5DPEu2ZlWQziDeXP3qIfxdhWXayG5XifTLQxNWASvNhnS0pvQTu5tG4RsE
+RL7xMCKJboaTdK8MBlItJbhLmdIYKRoOOrkM8SbOrLsm9ibN5rEekDR4ksSBEGXhSx8q0xcv7FoJ
+QPhcZ0YMrn1So1opnamnDuNMOFB4s67gSMONmtFtOha+AHyWZ7U9KoZ0DV2s+mhaPoBjQ0rJ7H3V
+aDCKsop+INLTnpfrkVbvNMS9twUoqvr7RKqtOyELUNGwLDr2H5Sup5tBO7x2PcJ+DcWCu/5CjlRL
+sOsGH+UmqwTeog1t9w2P1SyChhjl+Z08SsACwIzVkGg8kX4XHLl2Uw7BWLiVOEiqY05QoJ1BbNun
+TumFftO3lRRtrcCKOVOBpZNpAUCdgM/5fuRKlATDn4NPYWbTToLUOWkOAZ7EbIyBXFilHF6iP2al
+130XmrdaGCelq3RTAk0rB2N3A+WHpnYLT4HFKJX0pxRnUr0dg8kb3HGgZLX1AxJjV2IVK3ciiJNb
+RHSpWNikECSqQrL3KSwNcokS6wsBoGdHEjJyVl+SbMBMPYT38SlvRhReZhuAawwRmm9gZlWakHmt
+X5cafWdHmcYCaLFZRGgxqp4E8pbIZQs0Uj5KngTkZaCSChKvB5btJvCHfuZeMX7JEym6UUGlizNg
+kNox1ViDh2he/DK9jscfdV1qhVQPybgijYZNYyTidzK+vnF4omSkoF1l3kiFUko7TzWn777Qi9dQ
+TDvxA2Qy5WevScpcnEmAZ+Il5F9QGA4m+qNidgO5QJHA8CttQJsdgwMHEBAnyhgi8S7A9CB2clXk
+g3WiqN23dUVbuWx12ruxWFsXo+A3/a7ne3+euMGHvUo14yKienLXKB01JDTO2isAEdySOeiTj2QH
+XBeJWOedPdUUMXZmWFYUsGTYBJ+pSSakIHkng5fKYvNOT3PAsFw3/k2ZgCS2O1b5Kwj17mZ+6AHF
+ERP4YIKQ17fwJL3nuKCC7HTKwAtDHcwEmAiWKo9WMHKY/SIYDfBZCeWKNEJYd4ManvqcUGxDGVYu
+gvtAzRpevqJVPqIzpCcU2bLk2ZfKChSEF1NSgs2dFGDSs+JeykEAEGTBX6gamsd2WGNI7nKKx+/W
+qE8debwCFqSnVKuBwiFtBCetJp/UEC6DQxdK/6GZlXHHHVQr29zz6XOzdauN2PgVKX5VKIUzR+dx
+K0cUdzbR0FDG1swJYGRgpjczBnV0g6Ecrslcslrf+3S0x02gSmaJtFwpXNcdt+Y+znPlwqQmItsm
+AvM84fOhkG5qyIA/K0+cbvTQTBq7B1jR7puJ+tst3DMPbVPByFmbQNXyDS5ejXE1NXpSPPAuEB4E
+i8IobaBCBJ+vR2S5TV9Ij0k2qSI5IM+jZ8uPOsHm+QVG0ZMgTe2KEtT4VwPHUIuWi5VpBAmF0hg4
+W58iPACgcPwCurTDb8OCurRVCrg8dt6O+NCeZ1zPWgJvxQ0wD0D6E7kGEZEzqpALcncijZpVAvyh
+IazK34U29+w2LtudEffDrSAkiL0Kns+na1o3iVtpd374JeF7Hh6fVuj4JjK2dMEOudZwWKsG2Epq
+Q73iOZQAZW73IihBBVXb4oYehWVPmup/qIYEWPD5wZeuYpjLMbosinQdFX3WTzkcHZ8wXaN1l9mx
+x5W7qSSPg5RiCbiJeVWEwJqoovkws+mfh7yo4Ihu4gy0CUkMBe9Sb76t/EZL7vnyN1pIrAB49soq
+5XP4uUocpoXpRr4lO6RKDyWpMIGHXngFG22TNL2Gvpc57rKMCoDc+0DDR0oO4EmslZVaSgC8/loY
+GM6qt5JypCxWDkToVuVJnKU+5Va4cz7AjoRqZFzneu6eX4WlNsQ82qzwYczqpmBiFjIpRa9mWLyD
+BAEObP5QQ0MBHgddirRw0IYfmPzKKyI6p7YhknuSrs17UNIW0hcAJOs8runDQweUb3VgJqS5Eljc
+RhwuQM9ZuyKDu50r+vvsH2Z7Qx2ksT7vQMaXFjvQzGEggn+h3YcQHpQryr9h8SVVuQsuqATR2j6/
+tMcTPRxvsb9GXYCYUhQQDzOxn0VVx+uRcT+Ax1DAipeNW5pl+cnSEn97fuTjnc3IiM9oiBob+FHN
+v9kbgch61HIpVNnZOCSJlz7YVi7eIn+nVsvremISyLaBkUER53AUhg4Vq+REK73UXGoz9M1MpUua
+8v1nA7z1yr45PheobxM+6B7TEORrHg5nqpZnpQI7tWq4zRpKww4Vx6+Qa6T9+eU7PhMqOhsGTuS0
+e9D3nZf3zfJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGIaTYGxHZxMaLEC7tMW858
+EQj9szdS6LKaaK4kVkF8i1qjuaIzcmqHYJ2ApA9aXSIWdIdT7HGEUOncEo2rlveKNRV14RZG3WX/
+YCtiQYQmvKSqfLXFQCFgcjIK1nIqjRKsc2OBORrKlVFOrR9y5RLgKVxQwMQvpmOA040DRmlACOhQ
+C61pHwVytRmosdLBpxZ2fouc2oyWaIEeIC0jmi1OmJ5Xmj+a8xaROuuuzxAGcQbfN4RNm5DUrESS
+pUjRfNIsxRBZRRXViKVNSW61CTkwzONK8tOnkIYe+NAY6MpUXJl1NtsRC033cH6KJ8IXFwMiZBKx
+Epdn+XBNJ8+cFA2QqI2mAIxOyfB29Ui9VUmjbZl4JlUIRd2pCoDHleme+JqIwNJtRpOJ4KIuEpVO
+DvPALDnptdeajzLE64i7WOr2mJW1Wx9+9Ob8VE+chjkhw5pFkbiSlqGl7q0GjF1CLwt4qKuhbLlt
+BWXNkfzEVzRkFN10CZUipJ8X00Kuxo+y+cx5ciwNoN7jOtopdS2JW6mZ3xJSDSUqkNrIWpnfyZG5
+CKCwYRaIXvrhp/TA/Q8NbmA0SzrxG2yrmPpO7IU3I84YPwjtYF17mJzeSiA9cUoYTiS5QOsaeNv8
+e70JpBWMdwOCKesaF8NlnYndBiFY4c6igLIS0E5MEfU/Bf8STsrsFH44VJmI8tRrKVOE+ucKFciy
+Qavg3Yb0j+4KUMrfYslakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eLkBTevUct
+IB8WJhu43qCBeTjBCM455SQm6KEH5FoNMKa+1Nbk3o5Pwmy4IOKxqiH4pi8VAcXOxMSjxAZGQD/g
+Ju5j4HxB1K1kYidGmaXx+A/BEwX9RfRsoaukmWbRizaAiBZSpgHWCfSVXX9iFOwMkZZHQlEWET87
+XLFBDLqB7B2MBZiR9KZCWyd380pogpVtfmogEkrE7EXuOHbC4UA0lFQ/o3xqTz3CpGEqVw54xRXB
+4eOg+OooilwW7vBkP4vZyOQr/ZBR42S68SWxMxw3YQ38oxgg/W8gWBfj43u3HFq8eDWCUNdmZ5VF
+2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2uXo98q1/FJS9xq6RjmATGFV4y9dY0
+2sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuX5/BRPbBCmiIsZ
+lwyS/0cvb+TxIa2wkGOQhRB3c5oLeTO9f78jyUNdTFPmqGstdIatWofiDufAbhPRuzUH+E51FI8r
+5pXHaQGVKI2bxOCqhBG/OLueHqA2NatnKjjbAdRGlAXSTP8ZxL61s3oTCm7sD3Tw6ibdnV/GE1+O
+bAu5QA2rQolSyuFO6UIxLEv8SuxcV/1vMIC0bzDz1Hqb5Kh22HoMomh7fsjjawVfCpZybuRweS7v
+7KCXM6vHRNv2lGzaaYCyvicCDckrQeZ1futB4JXsvAwo554f+MSWMVH1NDmAJudvKTWL7SX5K3KD
+dhc0wsdIU1O7Lor+3Wks07OQvZThW6H4vbi/8mKAym+C+7ISM9tBa/TQeBMyg6OQJKm2skFPbR2u
+ZoqB84qCmTv8fq2CIxYwVZ6l5hDukPYCWpeEAqL0nhFdI0c4XmvU7HYKufX9+5fTYBkxGzHZPtq8
+td5kIkZI6drXNcD/YJluJSSfNjmSiitP1FMb1JB5EpNCarxUFykzkk+FguA8wGQ9NuwavMJ3ZUDU
+E/htuYcmUu/Pz+o4/SAu85JG55ZXD6H6cFYTaio5DEHYPWmgAY1UfVqSOt1ZoF4IZa1syZOz46U/
+ZyD8r7l476NOBTQUlQZUXDx4BLgD0zSpc2tI9nGqifWnCfbPWjXsxKCzUQpvH1aUe3xxO0wyUOVi
+gmsz4tpGnwoa1wgWPkfbxk9T993rCTQBuVLeqlwNyiLApH0M0xZpHWhRDQQjJ5yGMvkG/8soB1ji
+Yy+vvexevVEOa8KzbQqvK5N1JYVYfMIhtQJfpz1hW5y9dBN2jXjdD6iIWWGT7T2T9pEUlvUuAB2J
+D6BAi8r2R4OmYNrq7cr+PRF0LMRPiOuKToBf5phBDzoTh6gcfE3lbzDTBcbnoxZ/fpVPz/nNMPO2
+fnMYI71JOtHDAcebpkG3q3YW2MIuUtWcVLGaG3azcCH29NjMBNXaIqEdjXi5iTNPJK54VZ3aX3zx
+3+YKhIfFkc0RlPMMlSn74McdFcTqi1KVMbAw0b/sat5p5yd/aokpgHOhcH3Oxm6Hc1f1CX8KjSeR
+oSkl2muwiIwx7VdmdSIwkLbRDkEgX+FbzrN+s8Kgg9VkaHksIKNXPnqRTy+xlP0nzLfX8oGTE+Lh
+NauUg+8VFwuIQjIgAYmso8JI3PUqUIE0a4KVrOPkKBBLCDzUPwjihxOC2+QVMtapWAX7oblFqkht
+XZ5bsKDPf59TK4eFD/crxXcKEItcviLDNyG2MpDQiFsBdLpr5J1xV8Aa/vxPhkL82Zqza3zAD+eU
+1kPdWAIfqRia4sb0moAupwmUF0RRH335B4PheEUZjjxbWj7FkbQJUIgm6+1owmzbtsH8EpS42zVJ
+uj0/1KlvRZ7GLYgkM9f8Yl7gmFS9TinfKIqW3iFnYX7Uzc5ciVXz37IMnAglG3OJiBtiqcecJZ0+
+hhP7LqvBTtoteNELgmP/EFCl2hYtjJ/z0zq1Myj4AVMEsUQfa3H9KQ3E8VSnfYamVuZEExS5KsIo
+jOQ+WPlYx3OjZKKyKbj4KGcs59arkpXU4KpnRnW1C7zyLjerS+By+l6swm5lYidGM9FexkIB35cZ
+cna4D/tWEXAcp8Wu9YJ+6aeWcI+9E/QdqZ1ukenzVpLO4/1BdV3CPIc8QobtujjLoagD2hdyiO30
+2R8LaRqpu8n9p/Of6+QoOB1yjKln0Pc8nJUgdPowodAEqg0VVrXzq4/AONd8lU6s3ZwL0WzhhUDh
+ef7zN4GWkj0MKRNsfdaN3a0keTNsAubvpZr2+le59JJf754WW5BKk4xiPV2exbQUPalCP+BdgMoY
+GXsq/wwz450+1VQXeBSohCUCOpfHMq+UBQQnsqnjjZcrKOnW6MdQYVYzBzgGJDWRb7Zymo+/FnFd
+w4KThyUp5rIpWHYFLJzOAtOXlO2VMUXetdj2Sv/u6A6tQjRwLzeI7rK5iO5mCuYHEEiMOkaTb9I4
+fZlmuFmlR2tWWEcT0hWJZ7gh8k6WcTBfHCrUfiuhFSEjSuUYPqa5UGziJnh3jZ5ReJ+STsyGCUzo
+cPsBBgXxbSA5XMW9UtpxZiKH0499rFx3bQF0L6otgHRw5Tn8qF2Wq72yU/OcwwbPciIIXcfD3yDh
+uTOTfkEwVQl4mbBSgis11NL33v9cJ7PPFhczNzOh8XAYEYn4Vp1reVDDTNdS+pcMoPH+/Nmac+2D
+K4Wy52wZMvfDrfm/h4NUYVZXTa1/b+EJF7lwp4f7VDS2uSTbuN6Q4ED8wrNhZU8elRjmUSEcUdtV
+Z9GgxTcET4hi76B/H9pLKzCv0m4j556T6JE7Td/OT3A5FAVkkQ4ERjmUXWFBL4JHiLbEBDwUZrA+
++B9RPPGctk+7DwKa6xsz9QCUcZu65wdd7pDXQenz09eUSTGW9b0I5SGtz4fARsMjvoMjkGwmczRX
+Rlnezr9HMcl5FWU211ucNxrRPpLATC2A6tQDLBHmeixKSg7c8jXQxInBZsMQuGh0vbHJWET9Ks+x
+KtNmRGLgMVZfmJ+40Lgxh8Z758ZnXgdDLTa+pnueMZUMBT+xh8iQejsEVt6bss2jUP7BH4PiGpFk
+ERfbVgpA36PQSJDRdj2dYxpuk7F9706gQwsTgjhFyYkiyeH5gnUwRZoOQdELi4JXbB2gspi8N/LS
+/jkYZXGKeZCgCzDweEQU1LPRznoUY+nx/EyONwDlCORZTaRdKCoZi68yJEIj+xNyahgX6T+lAU2H
+BJLurC1hrNklvW7dt2GJBIPBKBHQMqHJtHSp69FJUMeOVhaddJRkyBkFCNtGfVUJafkRAG6+bfS2
+3SMAKztDGMkXKOUmK7Hx6BTzRsb3RALBZc48zsWM0xKV9TQwvlkhLIASqUVn0OO1bOrkIKA8WFPa
+Nrq4HATpF6SE/cd4LFNro5SKdpnhV2ft3vX1ZlSMykOIPgoD4YGyiBVtkgxWoA+9jSFeAHq5ML+g
+nQKNVI2ClTfeYka/hyLLxa6VPjaWhodbXvGMMM5Ibm09hQBeM0G3TQTpfUHidRT6P6+TwQZziUaY
+8hwpqSyAbRNgxVHBir5SxGmta7eE8P0ehhbDbMDHc1VbrBvaOR1NNAEofadV+2goxyuU5NqPWutr
+u4AHM+yuQYOMCYerjzFSgSzd+hca2i0On3TtoC8O4euvo9MPmI8gCfFRPdLMZGT0kIvIxyGxazVO
+PgxIGmxD+G0rptyv2LA3Z/B1LKByMhuHBj658eF3VNUU+eeR7xhE1X0LwQf5LGU3efEe2eK9llff
+27D/3kpY6Kje50xrvw20oUeyvrKJL9CmX6tTzLFy8QtxkZtc6JYMlG6JGIJmATPXRCZflCpLeUnR
+gI0vs5pW5y36mVm8jcMplT+hCxc+TyGK1CuIpROLP1vZisCVAE0gwHe4IF41yS0SoJ0NPAwdXz3P
+XTDEhVsGUeKeP64nztDBUPOv8uaNVUqjHIzztgsaXbiI2RBXJKPt+08qo1icUdBs8114OEoFtdXL
+Es5QO/nBVrYGYVvI6E39g7nwrJLoA9KJ0Bf7yMJpIUF+jX2UR9F3mNH1R6ET9E/nRzm1OYB7cCSo
+j9DAXUQdUBd+0aUwq+NQinbYtgYGrBDJ3/iq31yJBcoOclsUl0oXdV/ePzR3FMgyAB/HBwV6dSb1
+KfRCheLc9SBp/RPeCMIFdG/tNkVZDvk0Xb8l9q/hA4+3CeB53ltAlkimCQmHH1Do6e8IVYSGh6mW
+11Gc5fvAqtdaLsdLa9IG5NOJpsgDb1mvD8Sy08UiHW2oeZ9EXXvqVPPem/TLDhUXdFubvaFW78O2
+EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYME3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6OH855x3ymGY
+MSXuLUANtF/A1SyGBkEDoSxmaFMHlK0MXrTJi6Dc4HcE4aGp1ioPJ5aX8VRaIeCSAbAudu4oTZ7q
+y2jiIIQcO0OW63srbQV3KOJiD+HzHsG/Yo8m8ZoP4HE8m/uCYJWAl7J7lhXzAM9BCNLoLCJsJDix
+mAturNbWtkBnayWenRyKdztkUDQNubUPNypyQr2RCmjlZAn9eSdA4yC+CYsOnbRmFvw4/wWPjgXW
+e4AqdJVdO/fsF5e2MEChNjWIGNqAhIdQIXNVxPinnR/laJ/MgHWGIIACVuRxeTgnywN3NiFFhV5e
+atabsQ+izE30QPsJRcxEEq2I1uyGj5ZxMeRiGZUEHqCJsYED47NwJTV+iQypcdMy6VYmd7SEr2h8
+oA4kWPSv9cXVEExjIKKMhKToWLYXSJakDhShbGVbHI9CaYNuPL1OblUk3A+XEHHRLjJKyMpWXGub
+MugmhJv0aSX3nf+Wtwea9IWDxdFik8smgqSHo0DQkrB+AvHSep74abA6vJP89mJUjM7Gh2j41OVr
+HaKjIVkx3i4zensGby+ffYlkKINSw6cI60pyB2TMNcfKG+FWQmDpxjKbWbZubDbnd+T8+Q8mytuM
+TG2GHzIomMvDiSZD33ZijB9Usw3t1uk3+U65lt1gZZhlM5OYcTjO4tohYWz1MmGcwv3+kLlYcNg/
+L2+fzk/m9UlybjbK4WwGvQ4gADKKvANYYGPpsZE+ovbiYoPiaBu6b/aHyr5ERd8ev54fe/n+PJrh
+vHHf5F+8oBO1mp21hL3q9A5YePvZuDYu33u1LldyPvBvxhmSDFmIjHHUO29Xwq5/ANd86a18sOUN
+sxxlccPAyo8SYZ7NtMUixEE/0MmcYuUsHz2VlqPMZ+LNXJSwktRo/l7X5eZH7Ny/aLunh89rBpqv
+Hr/ntsUi7IJnTkYpZJhyA/zUQYbAfkBz82ZyjC/IeF6s7IR5L58bbhFyLYwrCR8M1zs/0H61nzP7
+8pfz+WFlmBMB4+3RXb7P0zqrDRRB51khhOVQL3KwDnJMV3efdo+1+wXJoLUPthIuljyoxlQKK5jH
+7FzedhywcPN1sp+/fAzs29p94llgo7m5crGsfb8lxl5Bq0NO5u83Oj+mrbjDGGtTb4OP4YVnJ7vW
+XlnY+a4/8/3kRRSJVaiUsAznSQZOyn9UG+FPB422leWcj+q5gRYhQxVwJApoXtpShsJ358GIyKv2
+souNtTmt7ZVF0DCNqDaz+aCZ2rfW24dIJhcynmdZjCLJWs/5tdR2bl6L4BGZgqyhO/Z7AZMb7Bpc
+Y4sVnPMldEP3F9x7ArFo/1qb5Wv6eW7gRTzp/RRLgZKBlc/yZf2QfywvlR/eLRVH1LeLp/E+uwxv
+lFvtfmXHrC3vIsD4zRDq+bxjFPYMAgzsz25Plud4tuEUm2zju6ZjOmvQ7aN6yyJ+yotIM8pZnNTz
+waAHuQ33knufOpP94tkFy5tvZXv1Hj8VAOgJAuafSXPwbA4jdh2baSbOWxYv4o3E+VBci8xBdawP
+qYOT3119i7D1rtqpV9bFyiqfiqtvx16sMrIyY0KPhFzF7Tf6Q7INtv12dONtfSHv18pmpz4pLQX6
+FuDq6IsvHgQRetXRWBW1XSECL0qQcFGpUseXNqvcaLo7P7VlICDtp/RJvUNRAPuDWzhcVb0JZS9I
+1MkRlEbZIpOEuLJUhVitjdNKzJljytsjwlAgPOn1Q0UyDeSxDodKTFkf5A4DLQ+y+ofcyjJwwUqy
+EkOXqzePotLE4jUwk2aXpRUVs2psIVE9aiDn3qA9aVxWXVI74iinN1GRpl9gNEm3715Fijg8q0ja
+6YPq8/55k03k6CVUdYFlI76TxQZ5VmKq2qR3qNYna3tx+ZJjgrzhqN0AyNdgYS3OAaY81WQZwugY
+WZdZDhIY9Rc04JBSqrRcie8TqWvQfU0N5GspbteCjURieptEo/egNVmToyPQdd1FmeryHYCSEquh
+KixMuxCxTzq/LkfJN21X2mO6RLUJaBjtq8OFUfHSyBrDwMtS6jqsR4TEH4mGSNcG7lBj94oatNYN
+0Raj0+6povn47NeWb7oSDcJpGxWKvkZ0X+aX86+ksD/ocKH4ip3R4a8koNUUYhY/ODgtxOgNK7KN
+J0X6SO0fTYK+6MzLsZC5dsNuWEltjw+bwkcDoUZJmCK9sridEHQV+hGWiFM15vcS/MaXBg2iG4Q3
+14CiJ0aaGTU6nXiqCsB5Difp17PznSVPqOpFOmgKOE9uPkaIhtKqejn/kY/PNVVMyl6oB8DZEJdd
+ed8QhzRH0coxUMTZNNWAz1Ppr3RQjh45fDbIlQqoTHrIXAHzjN8cMZ/+hBJNbed4QuDZA8aidpT6
+is2GSi/Ddso3RuIlG1mM1Gsa+smLlo7SSgQ7Pnr8DkBvZtYSSLNlsW2cut7PS06XiaSzvvFzT/is
+xiKwQKtBEucCFWMUXd69unMcg+gD2keiWH8471QLUiVPPPj2dY4QzqjG2zQ1lP37RwHfPPcLgB1A
+mD0cxe872lNj1KH2gq0ngkiIDeOp/e71U0WFiUgU1mhXvn7jN98wHpXYaMCGOGFfZNeJWktuKCBC
+0yMi6qbt4G3fO6sZtgGokiYIO0dd7Bl5FOsES1pk4qfQv4xyYbrwsGZZeSQcBxRT1qBuMim6bke4
+Q8i/dPVGs3awic1cUUQGJ0GrfS+amgBoQ+sRiB3q7sIT6r9RWf/1PPwf/yW//X171v/+b/75OUfz
+aUaOLf7x39fhc8W3/9X89/xj//uvHf7Qv2+6l6ppq5c/rp+K+o9tm/18asI8W/7MwV/BSH//Ju5T
+83TwD5usCZvxrn2pxk8vdZs0r8PxO8//5v/rH/7x8vq33I/Fy7/+fPqZsjph3VThc/Pn33908fNf
+f7Il517Pf70d4e8//viU8pOfXyo/LAhav/+6Nz/z8lQ3//pTUPS/qOOCkqNQD/QAnMuff/Qvv//I
+/EsmHJMrUO+FUTAjRbK8agJ+zPoLmgFqbJwIwijQH7YPZ+z1zyTpL42oKtNioJwKsFr7839+v4Ov
+9p+v+EfWprd5iIHZv/6cT9ebzIib8QARscz4/hEiYm2MRbntH2I7fhN1lnOZUWAm6AvwREv841wH
+M6YxogQWJ9mswW7lKnCmTPiZ5Wb6va0KEUGs1K8eVSPU4aeIPRDaZJAbxKL9QMIUEcEpYY+uappf
+R7QWhctaR29Xxs4usrUqiX9ZFj3HT0TcctwMECU+9VmnoNUdI4uZPUb9ZPoXkBXlybX8Mi+v+hjT
+ZCezUAj17VATEMYSQhNZncJEtNTJSy3+CtTVRN1OqlJtByqptvZ9IGI0wO+Cr3gp5GXroG0Jl56U
+rBnwO9eUZC8paVPZ+FhF7UbFb3QCwzepqCdWkH5agH+IAMSNdg/stMCduZIGXkcYlMkfOtYOCTRs
+AX+KPvLdgG2rflP1VXgXgU1EKQFwIqZehtRWzuirwlcQ4t7kjP3UlXszMLPpMtNRFUBZL8V/OIhR
+zkNYqe4GG4/ekrlb/TRedGHUf8utPhycMjOFzxh9RxeyhnDU3MKxrpEX00unl0CYYV5nphddETfI
+0yq18iAVRYUsFxS1fJN1NUq3Y+AnT3qtb2jRjl8DM8fPubBCJD6H/Ekq/OZeQgbbRypeHD7XGA4m
+uwjPjnxTZXqFOuKo6uIG7SEZyjni2zhnGkLwEQP0DiZLlydf1LFBHNcUM2M3pQj4oDc49mjyln5/
+peCBjgllELY8v8QWRVwzbXJ8Kg3/ocG9yAeDVWGLaaaq8nXAMRsJYjLgz4jxeg+eEkV4R6Mc2btj
+qOVXnT8LxJeNMl0qqDx/LVILPb9oqFXoRapoPSsVWs92nTZJtMv6ZLpT+wkeStXjLzN7J2sBApGq
+F7qKNEqJU5PAfK5ToX3yWwkpDWmQkOzU2079NemWh1wrqNzEVswef7coxeUeBbha2Ep1m85WOGkT
+XMHJCW0PAgpuU+SId71m1qXdSaH+cURjvLIFcfLVD145ZZg1T6hqO0MrtM+h2Qfh78Tj/98tb+4J
+gL9zZfjM3UJL7+kPh0sNcCk9gf9cMX//6N9XjGr+NTNsjBlrDvOVu+R/rxhN+YtMHzoeafh8w8wt
+0/+5YmTtLwxgkFmCsktOC6PrP1eMbP01d5lo2M2XA1mT/J4rZk513oZlHaICl58pmtxXXF2LV6OK
+untdt23qZtB3nQgTx3u9b5T9pOTd85sV+vt2O3ebvQ5lQS0BjYZEwfKB1RD2GjUgWPAcNJxO6jQn
+mayf/2QQLhp6fjyFrUVqxwPONw3ot26AbNomQOjXxUVuWmnsk5QerRuIE4A8LB4YmqNnh2DFYiIX
+SAGbmS98GI0ROxns9caPOFcXxjUC6HhxFJnYpo6CJK/pTr2HBp7QDE31QWysmWZaef30E4iA6OEy
+K1Q0x50GjVvBllPFoFeJdXiK1RVoesvBdC7aobVuhttw9IbMxaMLrURBFDTEFNVBMFAb90riCM5A
+o1toifQi+77ymIV99zPxFewDsVnHT63UvUjB7iudaEb5aeO78oAHxR4MBoLxjawKvypQQdd5K/HG
+xq42xA9CjtoXSA0hCqZgFiKnpez1edBxT0AYU5O/ZGbuYQ0TJxEC2ICmnWHyqhDX4BSXhzzD49FN
+5ZbeUChG/le1lftZDLpHxB5JFbEmHGZy6IIj1xNnIqQhCCmqza8yVjF598xUzJ0JDcsHTY40VGoH
+XX5ueE9fKgJa3rz65OiJvx/n7U5qc+yQxLqiniwYIaowmhzIH3IfY1HRiJBFNgpDexIjHWnPSJaw
+dBk7k/djjrUMnMYYX1b+/2y6zvwOUjy0yuwKmdFhwOWzwYZJNSaE8EOzas19KOhDfDXWJQrXulHV
+aM7OpJY7iQtgcoJM177jBifQ/RuG6i5r5FDcl5rCOoudUCuOhmTjtVim1YMntz0SieYY3WMclP/I
+gpyLAMdtcYILgGQ9YsdJITltrQ3VB0nHzdxpFBRFPiBJA3l3MNToBetq7wvKb/098ucqzngIODUT
+Ey4wxKzR7R1tzLOrTwP69d95EUe3WjrVg92EevKAlnz5XUaVSHTkocIKhseL5/qFpD/EADiup8ho
+PmRpaEqoq2ftuPF8o73xNLym90XQmN+U0NJ/VBUavnZJlzh0Nfh4V1qkStdSrvMl2iKu7y0/iz93
+tWVc5FnagKcqtOqb5aPn7AYGvmn4dQnjXojx3+T3CKrvWk0RCSm2kavNahSUH3y27lPX41DAdi2q
+YIcVJzrHo6GitacJU/iU+9TdUCsF7ujUaYI1qT5FSscjDCVWR6vQBbWxmvYvaAy0FP9J/KHrotmV
+YNDUDnc8t7rRkeQkhxU0yUj2T1qDs5yQ9OlTLQ/FXZcb+s+4aLz9APGvs6tEF74NQfg9R8mUQwYf
+8atntNSx2lifBgDgOpwSOZQB3Y1tX98leMkkqOKr+JSYHq/RzeipKEfzxG6wrxF86YM+DOLNoLU4
+e0WYZGF8JuOyig1gUj3WplB7iG5E47MukJs4WQa7xw4xvsWgLRb8izoovWHTqiJGJEIkFN6mN/oC
+2f0yxGYD/USk6WeBYtnRGzN+6pt2gMWDtDosYgF5R1vrRuFiAnxDAi1l6V1ToK258XLj/7J3XsmW
+G0uWnUpNADRo8XsAHHW1vnl/YCkDgYBWAWA6PZSeWK/DV8+Mmawmi/XXZv1Hs2TmUQDCffv2vUCU
+riMqCqjYupRnu4tqIt8ns3zJIZT4MKMGYe1Mu4CmB5AA5p+OphrAukmrR5yz0+mkm8qCUcRQjNNB
++Vo9dXPmJCWPoDAWFxLNbrC7xomncKVPX4Jc6LiVLbHhrbH5RHoXK5AKgBz5G7MBa0lCJR15ECFx
+pem2Wb59aArCQXaBS2olj7GVBO38cvurWZhA5WwZvsAhJ39b9tRK8A7pQdNG/Z5OaoPcgC+gGEr1
+xhJ887Imr669ehJPVZ7N7y1EtbugGhw/7beswRsX1flh3WxANp0aIzfGN1EEJItpWcRb2djvDsyl
++n+S9W34U04y2mS/XmiMh/9m3jeIIvscGrMCV/jP877LEhCrB26OWzm37Ns2vCRdI3NE5DpLs10O
+0WAEP0J3LdSu1mD6di2RhUZSFn05gdNx8nsq+mpJrHZuHy/fyIwTzcuug9m23pma9EsKs1qCai3r
+uoqzpWhv+c8IfLXQ9vOi7OVVy3pa0tJyxmC3BXP0ricr/Ni4iq/LtqVNu9QudWIM3UJwAohsSbLa
+or+MTbXpuFt8ya99IS7HRs+ts8uDsvyaudywZNG69nmyq43TLwQhtPPnaQCk2xP6HY+b19x7Q2vd
+hiFHdFqygf0eFr75qRp6bMtuaOpmF4AGOAeEcGMpDKfLgi4i79dhNqYurbJl/Sx5KeBYGJzeutUq
+IFBFonrvrbnyCdJos2fHsNeXqpXGse9oHnb5xpSXfT2DrHXlmwtQNu6qh7Z06y911BKW39AvwrmF
+6rJzi8BsdwpozK3OJ8dKFH6ah40wtOcq0yUpzZCLPtVzR/b5MDprIu3J3btw5U+eCeHHyOEC7sw+
+6JhJWEa/x/5FCvKW15VLHpJh19Dip9onncXPbnDYsyRWUdY9ATZTz0YxEz4yB+P8phcpPrsMWBWn
+uLl9v4zFux2sUq8DVTEqZLyxknB0VjDnEDB09dSz8EB37FbrNQsD210HsPmJs6p06PC89kTIFIxg
+RElIQJLImgL5vbbfA+l51k6V+fCJNRH96tqNBVitDL3z4MHxgc4Lh7QPKLfiGaeeJj96auA2hb31
+kgF3/Eb++TgfK3QCkVZy3R5qczDv6yaD0G50Vfjoe7XxdfArUcZgE5ivhU7X8jWRqnLdlF7IlTqC
+gOD68ThfYZqRpyOXqfB3buNC5RB++RYpPucSTRdcn9u/bY6a022gy805Qq710Kk7j6CIOnY4np4W
+QSZ0vPDtuIlYlulqowtd2WKfIf1xqsCZX5oc7raKXspcOm8ShlC4r/rKfqqswbaTbg7AhmuAyK9F
+YTu3feHloP0CW+VXbMBO8H8i4pjiWkouCyWb9bUIdWTvWkca1/2ibdCws3Tg7MGavR+IWYeZbZti
+Tg3X7/y0der+IQvM7NvaWNzIKwtHn5XjL1fgceDmRkB5wt02G1jFANXM/s7zoP5wJPX5D3tj5rHL
+jK37EkHAIZtD9c0Lx3aN614V2V6Zs3VaKhu2W+0K72Yu+u4OSE/x5LV2AFKAGPPTVoGA23VB3jxB
+XelfOxF4tPlW+FQ5fF5Cywln3ato9L8uRNgg2AyBuHN8Z8gSNufMMwdsyFXBY5wrqFp9aqsxlG+1
+1qER512tfzAIXO6jYgLzlkdjfx0G7US5W3TZnGiy2/TfiNB/6rwQCSMW4T08dqjr/i+eDriloAXc
+Asy2MrqH0mijhKpVH2Cn+G9/3RT9PkD6qctj9x19M0B9IUfA/zUfhezcHqR11SUFaM5nUASNwVjP
+yD660IBNMARrzk+nV3SI0nU7uQfssv6o1i5yUuXZ7asVjCZRg4NqrSs4ajDpBLGdxs6tTetqWXTz
+TMpDaCb8rvb3qZ83P2GZpD2N0gpuEbmLH7gnhweWl9cPz9MrWJjFa/BvNSr6vEzO8mFJ7UOWapfw
+Yazs/Nnv3e0L8kr1pB17AJ2j6Y/+v5TxJ5mcZYKLJ+ovpIz//b+a/7j/PJXNzzLG73/t3zKG+xt7
+V5iEGZgwJsVM+0cZg8QZZl6XtVQq8Yux/t8yhhX9Rq/HhvJlj5+/fLku/62UI3FcFlAQ0LHnouQj
+f/wDpRzd5NeG/JLGgXDA6gTrfSgu/PkfZkiz6yh/klGe1Iy1w7jndFlSDaL0u1qn8GXUjvogOByM
+tlc0JEkNYFUBWVnDEgdhob+GxTK5V9EsFMZaiLI3dTDkH6oFvLGb7Si7CQU5kofebocGLpE7d0+2
+F0yIddmq3yUp0Q9uvun5oXCsMjpPbHuV9wLij3ndtTxWElWpDE4AkRgfqArqjn0Wt91TH4Hh7Owy
+V0EMn8OavuiyNK9M6vEro5paiL+18N+KaFpu58pz9ty21prwWanibYiqJPBMzkrtsjTTh+zt3IxH
+O5o/mYUp67gE7xPuhO6W+9nWvr+DzVJ849ws+3PUj1F7qwG9gV80Lf1R1B15aLRevXtdRR1S9SaW
+GTpvGKzvPqUV5VqEjr9rxmzG0ENwZ0etQAp5LHLsXEDjKue7aPv1OmwKVg2toMi8HTtHkGDwJ5tj
+Wm/NBf43FODzaO8uHO0G92hsgPHeWOGxp2upBFFKhPGCN+oWePOZb0dor+YFeGKC9flaq2h6GodC
+/hinSZ9pX4s35VIuxFbrA3IWynRvydLpb1DghofBE2wxT2yJXY1TJ4dkyyQs1CwcVRQDANEXqI1l
+fcrswr8VtdOXu0s2wHes+SOlh5ScFmFA1kCytlQj8RJV0bN2VhEdCB+K7tehbAVM4zLMd9KO6Ktk
+ZdaXrN/NaPfsTFtfzbYIHrlQmglSSiBuoWnzNbZq3XpAM/DEdhBErPIGRYsxaKVm4BdMp0B3CIdw
+sjSk9flQJNdnuxFswr6nTuqgPkb1V+YATXaIVN585S6rvszRCE6rNexx3nXuWr7KDlbrLmpsIFOW
+BQ9rHqEoqHErb1rGk0tc+RIdvGoLqFf1Ivh5jL663wjy9ROS0AeGlV1e7pdQ00o2TQhyuZMFH5AC
+n4Vjzp7oRxDq5TMCgIPbuDDN935DKyon4tlj6Y7sPReOpot3On59yoAtxFxhtRWq00bx4kDLyACz
+KCC3RTbQ6ro0ac8U7aBJ6Ay5vgJ5aTKCxYQPMXoO6+EFhTGDjZCGVWwurvvGF0RdwIkOH1bgNyVk
+58y4hv9MOUQct3qWk1HQYfeGUaVCICzsAswDZqLEtjxCmwmfDSeffpBRRJ+8TMq7VrajZVL3koq7
+GXVA8941/tfZWlS+Y/YQfIR9PeDerp2FNG4zap9E0BSvllHTeY2LOVpsMpsyS4ppq9/AQg75vrKg
+uiYml24OH6EIXJ4KxhClNA3rtRijmhaj2fTLbLjFpbwsJet55mbNB0lUIghidhFUTFkcAAw3i5E7
+JHS3Bd+kWUZxC1HkzFdrJo2rxY0J3fBuogl5zKxD6N26zeQtSTNkzuPoB3mZbL7Npcich0hSXCPF
+vtaE8cxqItsrZOwPnd3IXDcdLW/4CKCIBecATskDdBD5zdclwK28kKtJMBYIoH0tBG2EXQvrR0uk
+75gQ/2Ck5PYDsnTZ6+/hjo7d/Sx9r9mBCnXzHcP69mT0jfaAWS5q2Iu5XJ4HLYoKUE4WvJtSm8HV
+0EYwfHpHRJ/qDXgeSgJ0nJRBIT2GGvT8LHgQIg1EEOdgqK/ko7s5YdiX8p3/RTAGfNRqYCefC9mb
+90bo5A+g5NezZiuTDDeSneq0dTewqGXlV9dZAwPwlJWBa1EIjiVLm62IAN7W3YqTyrKec8ua+91Q
+1goGrDU6T/AxRctPvgawCiPkULsp1kcR+dX3xW95jFl5bxzGMdvSkNSBs9IXDGMDXBCw3xCWUbp4
+Fawl2dK41AIkJmrMPOl0rX33i4ZcDaTbNlR/aXUbhj0YUgJgwSawC1cNNYpoIOEdyZLrGhyD7K8g
+xBF24PR9AyaUmWCQBMsGJ5UFVd4fFgi3ia1tFCe/udi9NGs5351gEv6VGMCcJ1k5QGAbB5HbWFsg
+DF/jSIEEooir+gRrbVvSeVlpTHOKPwcUniClugHN8bEt0oQQaTJwZPHGA0YnulU/ycqfc0Zntfnc
+EQ0KetUx1+hYUug3TPvI8EsD2YKlY/pYlgQITsUMUzivIWd6rrwaUCaWXYNIxWLkoKYodp3M/mSG
+jdEdPbcnkNipO1eczKBanVj7mX4OxQUA5Qp4gCT2Lb5Luz7boDnCme8/kC6oUjFVy5dNbcQAi3Di
+MjGryX0BLzJVB9FMyxcx1H51HKS3bEdzGnlYuWHBVYa4nLXPbkYVnTo8GcFzzjSJoSMmP/GXLvrQ
+AWzx/eRGSlMYB5l5ABY3ZjuWD6Nr2itBliaHoUprM2uH/cLW9MLRtBXmjvaQeF3OhVUeoc3lPK7M
+VS4JtUvbxuHAWwy9WnwTU6SbvXZXrgckVN5+uKlVHhQybhUP07Ba/Co9t4PSPW+9ASpLYxZGmw9H
+y/EIJYryGah56S3rtQoYcCQzc+Mn9lzx8BIH3sUFRqZ139iA22MgcYSBAjvW35UX1LegcLstdYZ6
+ebR5UoLvHovMPkQ549njVtRuF4umdrqj7nQR3omtnv1Ur+HlnxpbgGtqzfnm864MjeOs5x5/u4Xp
+7ywLipqTpY0Gd73OTJ9IvJADhH18oA6dRs2NYczXw2nqDb5IgrCb2NdCV2k2WdaPjK6/iyE/sxlc
+bHMtjoWUlofQZKxzOqzCbNKu9pu3IV/QOmFQG9fm4JhGPDgbBUCgxdrQhUtws8ra5jca0Cw7wY3m
+WlqxtUK6mrH1kTczYsCifVq+oAF33UEUgylOGnyXoKCp3fzWdHS/XAl4aO4ZVjKXMcuL4fYwRIMs
+T40FWPXday6Iam10zzr3Tbhag56yg8KAdXLU72+i4VY6NaUpuVEIcPG5OmQLm25YAidZkUGiY9uZ
+zAZo8K2XOlpsdeYK9NmMhgEMyKHNQjsFReB/EE5QfFPTWFeJ1pXqDsUUQPGqUXqcvTBK51O4gIdP
+HPCbt8bi1JfTy6wO9WjwEWqAzo94UrMIuO7Ip0FIN8ncncb2LQOaOiJDcC1Se4G8TRtewQWNaoOv
+h07egVs17E9i08uXgjA2Lml35fnd40wUycbMzQcE6XKR9nXHHVeAUO25+JmqwzU2ucDFsvH/G4vH
+lRQ0xMgk26S7J7WFVR/XhW9QndaW+8L3CtxYlc6Wwp+sz42uAvpdayneS1R40o+8zmTVDH7PCL0n
+dN4K5lT+DoIVj7JsQGjYSdkIRKJVu6cQQ6MVM4XY7N3I4i+c2jmgoJyHfnwMaKB4iE5ZRIXqNN+i
+LhRraoyj+xiafYcYU09UiLZYlx9NoNYgycgI7uIs6gxGFoEovxNFS3Am7Udv7otO519xWzDRrIux
+k2kJTyEpS+B8KdzBClVzG4YfJFoZDdJhifzkLwXxgFHY33QuBHuAef52Lwrtv24bdLpdh9kZZn2g
+rZcuN+3uyC/u2ru1dsf9qhkDpgbDSJn0yvE+ZeEKfjjorCo2x4lDyue7nVJpAa4l08nor3jat8hi
++SCeDRn448PSYW5LnXWqkVKZszv7cew9fzfPRf3FCS9AaTEPH1zP+acNvdSLCyMyRSwwoxB3SfL1
+xFdpuMEuqGW+JJDi8Nt0egqJGbVa3slmURl02YXaRlAnEy7m6O5n2HikxnFrZt8AOkYq1iDJHtaw
+ca5F5+VbbJdhOR+onTqHGkqoYj/mjekeNZT5m37Op3o/K3P8FjhlE6VaKNclLNs2DQoIvOHxXGhw
+8htrlx+GtN1H2rXVTqqg29jkdoG/HlRzuSaImPbq1GGqAGUVbQNiZU90XjoVbnEVdCEipevP+mux
+AB8eSiM39mOwOXQk2HxAoLacl7ve1L2fqtAcPvrq8jB0tTs99jpvwsMf2v3/Yi7/e5DTT+oQ7TlW
+tovF02ML/9eZuTHnijEvzuuNwCLu4bpZ/Z2eQ3XjlKr4yKete8tZWP/meBmkaaKIXIbT5oSECcnZ
+oBAbqwBYecYzIpF973756zf4q0WNpgesCPCzS8qR+afQHmd1OyzskUCGy8XNSF5JUkfu+jd2zYvB
+42crBC/jEAeIeZ79ACLtf1YQpqIqgbrPeRIta1hd9VIVQeJAImeK1SllxsS1VPrSbc9ftnHxXprF
+ZmCIR7V+brxRf5Yohn8XJ3550V9+G54XDgEmlM+kxV1Mpn+QNWDLsfeVCZn4/dcqm4otaYkzO46u
+BGu0Vf/0m/5935fAm/ACUiLV7+dX4zETuAaQrdjrRnE04RdxkP5t/ssvxlhs/7hvSUUw+UlRa36N
+YphK6c9Vww0l5CpYSeB2uyu6JUqZphscyGgQVd3We8fexN8sZPy+t/LT98lrE9+BuEIQI4EFv6iu
+UdGYmSoqh333pX6vusyB903Zv+O2vFgGGG7YO4eOPkSeB7Yct62orVSjXOdcf2CZD3XJef7U6s26
+7rx1+9qOyv9mOEDpwEV7NDiW3rI3vImFnfz1jfAnyZg3zy2KlotXGvPgLxcDWQelDRnejsklp7vG
+z8ihcFmam7b+n7/UxeX6r3hlYvV+uRna0sx7RXY5D/YZ0nMHTHtxIJuqqOv/5sa7XFS//CQeoVFo
+i5cke4Jxfr7oCoXXcZk0n2owm6s8q9uDkW1M/41APGL3hKCupyIuqsW51o73d1H6f7rDLjCTi42e
+1H4uyeAXAyyBcNE4YnagXhXhwdhGm6dzz5luGg4CSmM+/PWP+Ken2WWlCk84e1Wk3fjWL46rViyk
+sTPq5zhS7hEz7Jx2EuruX7/Knz/Vz6/yy6WiCNowOuVkcWtgthI4NePyUt1aefQwz473LyX9J7/5
+H71dvy+8/vwjks152RIgWA+V51dGn1ebDDJDXyTj6shbr1y8h3ZtqHiD2rDRzxgc2MsXy89UdsyV
+ZR143EZVojokQ8TabXjjvKRRoCkpSW9calkm0zDZDWR7nDlgJVt7jLlioW13/Wg9L8s2PJvSzz4k
+cTp/l+34X/1IiNImERvk3BK9/PM1mbcGgg59dox92P+UK/nODqd6/Ovf6M8v4l4SuUwueWazRPn+
+/CJls5a5TzZOvJYO6FmzQUBd6vZfXrV/5Ne8a7/XT2P//fuIzf9Xb/9P2wH/D+8DkLjMkf5/H3Tc
+4NQc/uPwvf8shz+OOhiLXf7if446nOg3HgWc/yDUcIn8Ps/4z6UAz/rtUiNd+CSX5TVGF38Ydbi/
+wYXlVGOiB0MC0eUPow77t4gDHFQOFQaGQRCq/2DUYf3rifiHm40ijTOMf5FBh+ORMfTLw3leagSm
+2uWJyS7XfeiRmcie37zzhrW5tUv7A+fo3RrJPLWw92GpMfGjjHZsT+WxDibrc7fpCO+TFPs26Ml8
+EzMmdEOi7lYYFkNy9FNHFxlBu+4zW8SQbaumvuXxKa9FwZTeGUuFaaHAzXyJzzRFsDLQs0scfMOx
+mMR9N2RrymLZ3VxM7T4f10eEn8MQChSrPDSSdunfFNaadJ0F523d8/jtsVnJzhte2jXqr0e/zlLE
+BXlyC+Y59dK/dGE+XBlm7371vGxgBF4HccjLHpRBy7ACL/+Mx9R9ClWEaY6WYy9b75uX1/hXXHEw
+vdEnSMdfJr4W6KgWmzVHbkAVA778RPJie1qMsL8vpMC5U0Vs1S52eGhweNzCpLoTRlBdMGjWobyY
+pFwyPT9mwj0SS9GGOXNkCL5Ehjmtfhoo5ffjGhV3gzvYKEsk4OJWQFIIjClVm2wwS7gPi1F7CQce
+3sKLPu3RYD8WQ2Olg1/vV0zAO2afOkVSJsC2r50E5TEt3Co452F/O4dbkY5DuCbDtr1AczMwMdAG
+AkLqiWsZ6hOPxxmPR8vwvyi8x0aP5X7twonZgsKjYVpVuin9uI0WXDk3V2iSZX3G7XSa3cUl/LDd
+aIQAKrA7271ZGwvARseyIKkt2EaYCmyJ1RnuacJgk9hT9qUvJjNtmbI8hobxSj2fMnNa9ixoP1bt
+eo+sxta5NLCv4LrZTbn9Zo8TMQYlI6BwnRAb6jej9A88fd/crOC6ZlaxiwRDrW3uzwg5LKh6OMfy
+gSTDJSqzUwcAHFCLJmGuyAivH9u+fxaBu+1DSMxhNL45vMZzbrj90a9g0uPFuJ+MJdr1uEaeA1TL
+a0uPH5VaX4rFe22j4YfatgLT0Hxom+jWvxzZD95iTD+EGwz9acH3Eu3oRMc6HhqvXU6Q+ZYqnVis
+Cq6Kal0+VrcPUWGjrLl1SeYFxoZfV93NW1bdTWFZlCh6rgpfR6P1rSL2V1R7Zmi92yZLGRl3rceG
+2g4+AwsfhAlGW4xjiWWQusvWNs0zThO0bTTal1o5LB8gkXUBv4WVs0ey8vzab55WbTJLSy27VbCn
+dqPAsN7VTSvaWzwTUnqp2dltaCfYwlW3d6TMq7TSNeuE7D5Z8lvfuJliew1tGKJz1b7CmPYflgmS
+VJJvpOnHZmBAPPWrgkmM7Qv9Cf7wLM4Q6uStGN0gOEBV384Zmb5GcjE1o6BvsprgUDYdtxsYZ253
+5qLdaZr1SIyts9rhSWnXY2BqL9mzZWxRlvhrp7rUjUrz0UdqKbC+tjXbJG2H7JVbunb2Cvk1OlK9
+Bx7jKW3jpOrCZbvIvYPEdK67yYwIx80m7Clrjq4T2lM0Ho0aJ0ISVCwU722yerr9ljHlJgAD63HK
+BlDEEjJ6db4PEexkMqLJRfEYjGGw84DZvpnzOpBzlrXNFm9t7b2g2+CzGYoVIzIx2+uaiHLsOjr/
+DN3FCrYFOQ3b6qnJcxTc1ZfDGzERDEwKC/vVburD/GEOWPncRVbFWEmADxxPZaCiS+ZTG4631RCw
+Tz6IcRtvaJekcdtHtcRVbExivY/MIRyfDWjJQ2JUnn0EascP3NjerE4qqyMDS7CE11z2Rr/sbHfR
+n+0h2743g5s9Mj7hC2kiuUYpxFLW/f21X1knGnvH+4ow694zAyYd0DXWz67WXpb60pmdRJUbClLN
+2Rqx04L6d8BHNxNrHlSdvZeR23pHEXJoPGT2FKi0xRW6xs7iKYVUPkmMWsJbniZ/Ge96juz9bBvz
+sfS2K9PIiys19m3Knnr94InuVhbmcuhUqJNcB8sex2lzJ0Dbs3Vk6jss3tkOFRAD+4pTMJ5z/dkS
+xXbIfXm79L5xWKO82Q1yMK8BS5GHUS0n0+dmq7NyRI+GKb0sIjE7r066oR1uaMrW3WZNOAWDCX8M
+5nicZjYj+yg7tD2Jfo6yZKqWiT3/pnoqxfwgHKr8lvMz3mrpwwT2o57NNSXUS2+WyrjOBvdY2Tyi
+dTuSYIev0P9gvlYuB5RvbGl+e2bKgWk+2rxTI4xbr/O3K2WUh/7i2qYxE1l9w9zAvJlKdLw5+4y3
+3GFE3PzoW5CD+bTU+9yw7mXE6NYsgBwM2KmToPSdZBozngnNfXa5Qis2rzaUehzELCCsPK12M0il
+26ZrdLzm2T4z8Uuo1sFD570z+TTP6NI5p6N/k9XBcmzq1r9hGXtOWN7HWd/YR3ttUsOqjv5mOcde
+j8N3f/Ni25MqaVWpj7lsWNNiftlgZ+BoLtrgjTHDc2+Z42nlgkhcY6l29iCj3ej0XwaGPWPiLfOj
+xvOLJEKFtKYjzaLNSVUzNW7bPkvceeKJwUrOVaHX+jBNhnzyemC4WFU3I/hmDFYvznnBilbMOLP0
+3rrKxCSaV669HSDUrf7tLKzxyjaozfZBtJkS0pmeRdpXyvZQfFrRJNsK+ekhKlefOPEM7z+7X7Xm
+tJzNg4yaLW1yP5iv3M1k2S8Yt4L9vWZ8KoIMPs0s2ZrbVa7VfNdUX+0eWqPn3Y850IFkkquKkqHq
+2vqqgj5+bJbNB1iigrB2jjLfLOsMuZLBk1Z2CbhSRt23qqpyzbiUucFRY9biO51tbzxNQ5evh3bi
+HzqxjO+UrM7VyAefaiNnpTHK1WT1+6LoXZ7Qdldlpzw3vCDZsK8W51W1KxMEdNP+XNs4CBlvXAao
+Ye06+RUwGoWl0y8tQQnC/tPbFljcVw5xpXKIbTH4ww2wxqrfdY6sy3t/NfV0bw7TYmHwNowtS0Ot
+p8cJarCxY023fojMfttSzQ5497BS83y67Ay5d40frFtMQuiMQ5awCjL2mDEHuFERgA94DGWIhsR4
+Ou7zCStd5i8N1SEVVXvkXQwM6XId5ifflJ7aaUoDwrcDLYWZqsGqzgXjLqqGEXuCIaIxf6mqVSG2
+MaAqUe+xhT7aW//Jq1RwZJnqKFmMR0OKur1VboeNBcOjMV1qWhZEZRApyevhj5zl9Cxd1PXOtr4y
+l/6iJKRrtigls8ceuTFWyPVPk5vxNpl1p0XYvOjRPzPNSKnbksgYARk4LuKTubWHamiPLBG2HD2R
+eCkqrmCru7F89vKbCoOEN1RE3ZAutvPJZ/e5T/a+4UYn9+IMAFl0nrrmmV1cvLua66dmUjRlRmI1
+093Qe/qBL/gtL4p8tzjlnRmq89gxjAqYmnPkdWc0s+KYTd6JkujuMoD8xGNsufVGolRl/jQZ9X5y
+3NQrS2BSQ/1uFRabvEOT7RufHaZufC279n6IpmNu11/KsKkSr5ZPdu485CyFop91y4cU9aeQOxTg
+kTzjGeqOzNjPnsoTZ2nJoilakAR4onaG2r5YOrspO+9pdDNrRxbije46HRdB1F3LkNjnxrlURH70
+5nYmoUBN82ObxcjMxaJXGfmcgb4FlHs1W9EBrenGH4yHsipet2C4dVZs4GwVnP2s/NpOY7GvBmHs
+ZObkBydnequ75v3CmIsxoZi7bC0ZU+NM/zJP/dNkBo8WAZSxEPNN7kZHeqn9IKaracEejS+JeXkf
+XG/1QDHKcmqwjsgm1kPQOrQRur0vIu+BscaeAJ5XfKu4bewh4hbd+tghcnK3huM7R/XFgFVcT4ZF
+fBz6FaXueyPGfbd2HOJQBuOOZMpV69SZ27Ndj/pQGAPbt1H7LbO9/iB0+LnHpOXkHgaE6LyJ9TWk
+NcL1CzSvFd63JaIov8yKnV7HTrV9mcuIdRsS5Q6uLN8LmiHOlnYOr9zRfzNZMf5u+sZ8nbnyBXDA
++IR4Gs+mu2MweuIxQNu6LKnosnNfrS+qMq/qDZQQjqh77QcHr/avB3o36ssUj/v8uk7T9dYu94rG
+6rYLgif3Yp+h/TV51LPyVfRLeJJTQdACBsUPXYbJ6hXto9vVzifP1a+ytoZkmG2GrY6kLRNlH3tV
+dp93TRv70WYk0aDsq8zGA7IOFj8PazBqL117vSde7l5lYRsLfCZXGCS+4uliWXzy9TWHTbu7zALT
+DTXqqUdPOvFv2CKOGJfuVpd7uJLFdyZ7IQOiuYEElXV4/6Npv01ePx7cyWntg55xkew4bafqTWUL
+0/ZBDYxUXT1ndy7QUjwy5kgVdUcXh40A07ecTrB++FtulptHyvSiTcbeyruDkvNQpLQ9LhsFjV0w
+gGaYy4AUD2Dp7JtwANZjDFg6+Ei9z2ZFtOIGcJTHn4bhdBm6Yp1/DqeCOatmzwPjzcUjYSOHFdcM
+94i/qdksf54XTBcs62l9PVek1SaIXPKqMDVvHfOQrFXMYRFu8YR3joKtX6OzgrtEwg1MNqatkdXy
+TFiLdJm9jWq2b/hUhvaRwQyt96aXY39yagJ2rz05DPnRpo+5yb2chifSFSW5IStKWqTy5luWtfN5
+orESmI98dWrbUTwoC7fcldEOzg9HON0z3lAgdIYvJorahTyOgXhiWMXmZ6/c3oXrFPdDN4Z8cU2U
+nxtbh/N+2Wy2huZuOI9hdk/U8+solytWXG8HY22rpB9t86YKlojlOOaD+44JSnXAY93v2Wq87R3j
+agkiGh8MpjsxzyQV40JNC/SYppd2jAq8L+eJPbN+Ym5snetlu3d1yZfQbbGT+9f20CRTx4lZOdMB
+FtirQxd4lQfbLZaIeOl1E/clyyCrUX1Gw16Pg8LwMIUFy2tDdds0mtrS69jFt+zXsRzWtNr8b5xD
+t4u7MBt1npb/w955ZTeOZN16Kj0B5II3jxeORqIoipJS0guWTAree8zmH8ud2P3Aqvo7S9Vdufr1
+rm5TlUYSSSAiEHHO3t829SjYYTSlqaQpgfAqWoV1DmZRDrAuxF3oZ21/R2UruCY5TWK1ENLxPizH
+VvGQJ2V3yIJSyU4S6qZ4nLIaX6xe6t31qkjfLCoyUKfE+sHnKccmvVL08iBGKEmSKOL8McjkA9Vl
+Kn+0YncjUwwK5NLtMPas7qLy0FmDj+voLZEJ8B1LFAajvDzTow83GLUkHL5GxMoo+zyM3nPKA2w9
+rBr935KwYpnyHcdHDv4AlXM7BOxxKIv5iWLSDxq/yH/x8r6qWrmPxaE8TROZWbh8xg2P56U4J2nN
+ls8ca0W/LVW0ltgP163X0M7CFUdyC1hAU/ElYmmUyBP0MXnl9MPVwQyj2GqssxULRRS6noiOhZUS
+wxGU/yxbNUx53hNtLpSmxz6U6a+GBhu6hFD1E89u8A0N+R3+uKi6v8TIntyAg3uGM1iZvxe5MpDs
+1bXNB9VynWf62JroRdJ8ZEKHKB2aQ1NneXvX9Mh2baMR4hagVjk0noUmCu1XS0LDe11YxtOM9Ac4
+nzoIHjkiI+3mOWffCpVr3WYqMCHRf6aN6GlDwpOiVYTxraJvLOyLbgYzToc5xm8KOoHgSoALRLaf
+ER12V9Kop7dqqxifcS3WBLSWxhaCh8ZevaOsV1Xie6lQj6PpRnM+z/rqwTCjkfT6+baa28HOQ7Hd
+GX3/Iy9pCo0MID/oJ0PaYwmqHXmsvKaUO2sfTeawbHU5bJRTMhP9zOw3eShQHEzxHmI1T/ajhYDD
+lci+Dq9a3ayqTceG9QPnD6SKXDTnz1oPE8ujd4k5qkvT0dogVe6Dm1Evi31C6wZPQ6EOMXo0aEu7
+lLgOVNI9MvIrgiw4sqQ1FWQ6mTw0YF+IcUIlpqLYFueKGe6rjNaYR2eGhTdsu+C45nXMTimWqiNq
+5vSE48J6iOZadNqgz5wuySUH2ep0k2HpfSR+561clGYnxjmVJWo8P9Rgzb0VQy15HQ0924DrzFBU
+jbr6MKSZhLlD1AS71jgzLEtvnZU0WrbMBMuiGsVru/TehtERi8iYrrtSiOiFJkoQ5gcjrSbp3CYG
+ikzWmKI+piNyva1yEaQNE4eXXSoHbfK6NIh5OA4ibODgWi+3GeLN6XVKynD1Y4Wzdq8NIlrNphER
+ejUXAR3IYKQgTUHuBJU7Q31AyFUUd2yCq+KkmHPcPCQzidK7LoCNBlX4ovej750s2OQNq/S6pRwK
+/HsAXNBZJrj+rk094BqMRc9+ATx7EW2LssQnnDdCmtzzUWSENRand18SU250b6lhdMrassEgjfb0
+OSD3WfDCRhSkT02q87eYe/PJcVvKnxDOoFJuo9JtlQx1dR6pKFr6MEHqhUsT42PYgVHxxosmU4vI
+cD0GWdG9qch/Rk9gxFCMJF79KkZMa/p1Hesjt27kedaFpVV7U5pWHOKgshFMuMpJA55A0i1bvQYr
+7KA016FgDYbPNKkFt0d8u1onRYylhqZa/FMtFgeWzKJ7wSpu5fSD1mpE5oPipZEYnsKsywuqsTr8
+QAIcWLYhEN27Z2ETUofS3MIK0QUsaq1VwJ0RkgyRGaEdLGVVoLfTjaVm0a6ntwlVNzPW83sfM5g7
+M0l0D1KCOLiUCivegKFM6cZgZt1gX8/C4wQ/kjmEwOyJmSm4wAcG/UnuI+MZa4F6xxrBLtCoBNb6
+2mD730VuDWSFZz3bTXob8dvQhJFndE1/s5T1cgiHWbnLtJjYUDqc/oiQ/cYclF3ddfLjrAekwMnt
+FmcUZlPqng948vQtOw62SUtcBTeJUqOybM2ecibK12ypi0MpDenWrJrXSKp6XxQJ8yw1M8B1qcw3
++PEmOyhrSMNyoLMKhupNE8Tq3lQFyak0ZSeYy49cH3d1Psu2wWl6mXLRmWWrcme6lmaDa3vs2+xZ
+lwpadqzh2wnFpb1U3V1rNtuiNu9USnzvdD3vLSPbIweo7Iw9iduTanYuOvM6tCrkSkLo0EHcGFZC
+pHdseCEqdh9KBMwb0/wYisBCcz9IezSwAsavhICNMeZaoJfTtcxu6OFQ2NH03xKM/6N24//v6DG4
+XIpsIB35981G58dr83//5+c24/9+0x+NRuObrKE3Am+6ZtfwgPxfT5UqfVMJBxJFoPuGBZQFIcgf
+nioZSxX9STztBms08er/7DMadC6NVUTBpgoYB9qN/6TPSLv7izADKdjaylwjmmheKl+jMFUeDNjN
+8Prp3SCMrtHjIMSiU7cf81BqsZ2IebSB6tQhnY7p7hPnNL2R0pO+DkaDQr2RCJ6ysflpT5R3+9c5
+6Vc7JvbgxTEHY/4IRZTtrjrpQ+bW8ayfEmGZ8TRIRoCZGEDYZ4fu7jRHMMOupiBADc1eNpTXhyyg
+CwWThA3rYIByjMD0NjX1atVD0qh1+m6QSgo0o0gVNKaQKQVx9hzE8qHRaXdsRbUHDtDjIKcaRKvR
+tJtlHh4GmmiaJ6lzesvecZhcESzBfkmQ97lJnKGMimcySpHdFOW+kdqMZzc9ypdpTHBXKnqeHQRR
+bytPphguU7gNGnbig9jhPMLzay9aF+JSV2WEYvrUyoPTTEF3J0aG8CrXtRjixU7GxuXSVa9927a3
+1VRBJzAGrc42U7KEqYtGMDwoC74Fu2otOlF6PfRXkhJkmi+meXc/hmYXbcZgZEuek8MG6yuee6+V
+RMwcENorfZ9TicOmJMXJ52JKMFoqTRNbV08XrLJZauJsaoPkvgs64wbPwUxiAVCtV3ztWeGQSFTX
+bmAE4zMHhhXfxQKZbmP6QE/44DKT/jDNDj8EXxQ4kRRE7+TEop6WhCgtToVBHbT2lN6Iho3aqrXu
+a5SSlVcObxkscNlqEHpMWehKMRJXzDEKjw9bVjpFcTAGps89PrGbMdSw44BLw+XGGxLK19RYFuMK
+NGygXQfa2OOdNvQxx+AUL026rVspYB8hlnO7y2MwsraIaLN1CnWsEt/Upa7FjieV5aYUelHbmAaN
+mbTTg9IDkAyebIp7TBZSZahuJlm0QZUibyhomznt2RADV+oqdCMrJ6uTbL5NzMrAyYNUFsSaysJN
+x0mWnxVKqoUbShY0lnYsBIU+7kBlRQDAZtptSh6SHdLYolNu5TS5TCMYRq8FYrOtunFS91KSdZRS
+A3Ki7plc5aM2SCJjQRCzksI18AWUimAMjD6CwW+M4kloBT1wsVhJG9Sxc2ZHg9bPG2mQGumxiI0l
+89nLk8FZiQPV0aTpx1NNjvFLbgwixIeaPbHDhnbK8HVZZrrBNdHPNm16CyFxIpJUS4qM+YKdmb1/
+kYRVsilFcqTsSMiig8E2rXoKqAUeMAfJopPh/D/NoqkIdmQJvEvoaPlVN2V964yjzClNKdqIiyHM
+yTnlWHVfYwG8ihFcPoeyQhcjGIYWUYPKGNpKVto+hnkJEVtpa+mZXAVB9gurnq9ZuJAOhynTycOl
+nr0z/jJQCNmgvCSCMj81Mq9H/cEoHoQSjbCtCcSRU3Odp01bxUvr5MWSP5RymhKgNFjZQSlxLnkx
+Fa5rTolB64XK0D8OuVBQoJ/qavFCudSAmEp6ucVnTykCTbwinizOrDjgFg35tNBEQMPT2qDNoprc
+DahCbfA9BAagemWNtcAWdTAOtiqO9Se7/kZhlms4EHPM9yv9O+0TXxKkhTVOGOrv42TWFl19k+w+
+xilCubIhqnXBNTE7wIW1ln6WlKZ0VGThSJ8JL1DUlsq9CSuQ0qIojbs5ztSEV6yU1zpsBrDxeTkM
+V7TMoSGkuSo+trQJqJjJIVStfOyrY5VXKsfORlLLbYDv52Rh8x4cZluzHLBkjc/DnJpuGGjPFKVD
+AGNTnlN+isCZbqqiGHHF4mallkmbyUcQQiy8klVQYvCMgoLqlVGeWHjlMd0KUTfGtqJ207gVDFGh
+MqaWeBWZCKc4rAEt1qrcHvNmZu9WphOuQq0MW3QD0A0no2RUFZqS7g3Ruk4UNTMOqTxMWzw7iXBl
+EBFIFWWe+nNg8eC7pnJqfRZZyjqt0Bm/T+Y2BTUSCRAsi5STxT5kWIV+ONV6xqE4oH3Z5NiSNzwP
+isheshHcl2XE/R3OTCH1yQGl5FaoBQd+lim24hNd3NaJ5kwNXFHsKPvxiGafLbA9vANDtUjObzW+
+IG7D96WIxBRHZVXyw1Nx9ia51uTdTM77e9UJMx1uWcQNsfQ9LhrILCv1sco7HrUp6wYGnqX7PZX7
+v3u9n3l+v0Hx/v1O7/ZHU7zmb/37n/3zv33b73u9ldmH2FOyQMH/RgL8ea+HL555Ya6SM7ZviLl+
+3+uJ3ywJOzuzlj4jO76VT/uHfd76Rv+fRc9gZ3aRlf1H9vkLJfufirJ11yiLxoW9LIuEdX+l4y8h
+ejItkk5X/ssx9Ozdxt75R39n+/7Bv+M/O3vDr2zP80Lb2W/3n9vKGe1Pd7vdfo726fwLvt6X2Iy/
+vp8v0khVHIYg4f24T+69v7E9x9u6P23Hb3/7bD8rVjW26z/Jjv/6El8VsiViKynmJQ7bg/3ku/5g
+2zv7eePbd7Zv27ymu3Vc98pxr/yTY3tX7i/egczt+9t38EVtT7GsVcVEOh3848vOv/e5vs6rs907
+51+8kvQFAPKXD/s1TK6VEUSgBToduMNXfLr1vq7/5d/HF/+wdY8He3d4Ofgvh2Ntu/7h8PLCO7Kv
+Nzv7bne32W02G2+zubZvvK2zd662jITn62tn69j2te3cbHnX7pYLtnWd05VjO/bW25+cqyvXYbhs
+//7W/Wp0fM1Co+KZyR2jw3dPT2/H0D7a3vMNaTi/umwXRP3fTAsTmejP7ot0MIwBINvpyj24rns4
+MiUOzIrLgLT92j5yz96YFTYX7LD+DV/IhPHvbP5ox1+u44jxxHSyb2z+il+tg3m329zw7+2Za+nu
+ndOB68Z8O/jr3Xdd58bx/Z3HF/L7/d5x1jHoHxgjR3+9oJG95Y7xPdwv3+WOXPGFXP2nw3G9CUeX
+7/n7S/7LAbTOpp98KGYYlILBleAl+Yy8O3tzcHeXS2HzEXhX/M/5xQ1Qvtg1/jpu1yn008suBvKH
+cb3TT1zOw3nrrBeBX7hH17na7Q4MuhcG7o7/u0zh3cbzaptf+lsu6cHd+i+27z75G99/cXfHI7eD
+Ne14F9r2d1Y4n6vIffL2TIgn+87Z25fRtNvsjru7H7vQ/nG3/tC3++NLbN8v9lto7xhuu7u74x2/
+/fGDldK3mQQ3ZyYt/z5tz955+8mN3W7P9v3dbjfZdmhvmDXfr29uvt/st97Dbr/9OJ8cb+OcHPfg
+eN7ZtV+v1zvIODszW2xvv79mEdhvudwu685lIeKTf7IgHVxm13br8PF2jJgrZ+vdMBIuX/h45o/X
++Xl2r05PT657dj5+MQ7+jFn56w35wldtEUNFxnpDWEKeuBAMBOfaYaA62yveq+P86kmwCqf/bpU0
+v4idcxK+wKDyiscdw9/53O5imxu6DnRm3JEPybzit0wX/mHvufPrb92jf+/e7+4O7lPJTd/YT1dv
+6/zhDR839ub+dlhXeKbpHYPGOXvMMq+yvZvXxN4zzvauK9vuiZXwxbIfvJt1Xrv21vV4FNj7dTX4
+xQyT/lxt+euV/fLIC6SuThY+58F9ud+tU//897dOFdfJ8ner2ZcnHs99Tgy8whUD58iCsz4HrtZr
+x6dcFyCGFgOJ8cXMYaBdcakY3ixb/Jbrwd9tGZMH19vzS77a33H5t/wtzw9+zUxwmFMuz2t+JD9+
+/RK/5Pt399w8Fgvm3mVBXF9x5zsvfAlvwXa4C+uX8xvPXqfTltfla/mJt5sjP54pwI9iKu923rra
+Hg5PLs+r3b3NheJ7eBitI5CVkzfH9/Pz1h/mXPMLlogD74ipyK6G+/ro7dcv9fY77v/NZdXiU283
+JR+eW2v73pbxvK7z6xrOe9vwnXfOKz+VSefsb9apvV4mLtT63QyMnBWH2+Xwx39/y/489AkmQPov
+60Qik/RBFMFXYnKsSgHwMs7loT6FN+EyBE4/5sOVEGkDUBawKCbi4l+86J9Hye8vimucOARZRUL3
+ZaVHgNQRaQUwpwnk9ETyTuaBsDF/8SpfrWyXj8aW1qJMySf76sNTqCng1+ajReYo0XuzkAjbC4B9
+2mBF+YsX+xcfSVIVzVgvJvFZX/cLmh6QPVAjW5PmeATFmgebUtdy/+/v1r/4SH96lS+bhaYs8ZJp
+vMqAPNbOx8q8u7gjwHwEv0i9+VcfCK8coGyVGGLD+PJSfS9FOnZb9NKGpW1G2i4omxfjVx9oLSb/
+tGKsY4FIbomTy5pgvbLqvjx+M0uUqFFDOoSPAiozMlIArPIifM8AajwKcYm4KELtJ/hkUQ+HTh7k
+DjxDIIK37jKURDL6c2dMyXUiqrbXXgninQAIU4hVbJJedRryhT50XmVEOnUvU6inzbRQTnXXHhm8
+qUpM8lM0qcjtgG0GkoOpVC1sUxDL2s0srjDao7SfHORzHH/pTAGmNLNU+1zKsS+8vGry7UxPjBAF
+PUXX2we1Km2sTG4fR5Bi0V6WB+oeYBh7Z+qX8aOkodg4YxREJD2jvEZPO+VgDkcBhQ0yd5U2VSe2
+xRG19fRIHgJ5FBGFa8jV0ahZdqSPzB4F5Ozot7S/8EerMi0+3HEhpGsd9blLs65uXKHRoOo1wKgy
+J0Yh8AAUAeFyDrWG9Akychtv0QNa0/jss8aThdp6GqKsfi4byJvYU9ZgiSCGCuHElHUtT4ws9TBR
+QpSR1Va1ZHcRIj0vTc0I9VyWWh+L2FMrpDyoFU4hmchrqXm0OCPEPEfChu8yPdSR2iH6g46h+eBB
+k1M2YF2xm1LUP3W9kj7zhH4y9E9jtg4SnmXVmyEd09FDDX3TpVKtbLMyRhBAR4yIiD6pmiPCnNG0
+VepIr4UcVucWyPezUdfZG8pXLCxGQ03RrSkhIrbRxeQwSypZSmrUhe0DduEo9HWk+pPTmVOKwm/S
+6s+iG1BAJJ01MrVltYi9qloQYqXDpDsQqHkHRVpG1wllU0qNNDEHF6MEWDfTSm+kAjs37YhUhYUT
+riXUmPG7GpDp1PmKNWYUmgd5dsgqaQ+DKWKMCOscGbRSqShMBYRmet1SE7Yyxcq2OQXg77A2tNjN
+uV2L05QrjBn/dpFQ8ocxYXOrrHPellXjzyZhHl5Tx3HojAz4H6qim4c8CREtzoUJ/DVNa2pC2dh1
+6baN0umZhClwUlQZ8uuZGHIBtHltfKppFao2Q6ErblQttOQdhTekA4GUDRRZJes9w94C/2yJ4beZ
+cZffCVrVpPfTwBjx6NkIDxjeG8KIyqF2m8UUTjUgrcITqK/uU63IC98UTGLjLK1ba9nMotnWxTp5
+LOPaMl2lnWXm4gpJdcCWBgeUg1puZ3k4J04V4HNFmoTMHnmJitKlaUyultQl7Uk3FcxIOD+LEwkX
+BnQJqRiibUNhrLnu8RvnXkLmr+gGhGZEfgPHdrSHDo2/LZQG6LKFxuoZPrz1Hdqd/C4Fkrm4KB7q
+c1s0q/pqHNPKbsDaZY4oT/K2CyBxezUAuQaBn5Ddrpgz0RaVIiU9ZYrll7oMzNSdayRtN1OxFNeN
+QXKhLQ+9eId+nKXWahEbYhLONbCCUW3xyIJ0Zo8TVeQWAQRWCMBr8bZOEIjZsVk0mVv2MewTAAYr
+sERJs5sOFs+ID44IE7edVKijo5GhuKSGHFtOBhLoOaX4+4zKL19cEYQnav8QPoeNQydMHWE2ozer
+rqhzVmrT524ZxcF9X+LEafOcO7FUy1oolyrIJC116AhiUIrFHY47KYjMqLD1Uc2jhOfGf4KE6a4C
+1AEUpMVlukeXo39MbU82oBRY3Q5RvGXYSh2H99agxC+AM+rHxhiBeCnhLHygmxlehVTNZp7oonJW
+64wAr6Kx4vc6Y7TahRIKDyJT8pUafBR5GvbyQ0ZlfrDpy+QlJX3C5vFIxOWDMZkRJBBTbcG362EM
+4S/pnwPWKdnuwzF/jBplvO/ynqrntHTVXWQUymnMkjqHKgza2auTILoZhh5N8cgTBA5H3pgI8rKo
+RgCwRGT1Bg06KC6AVfmVhP7NGWoreEDVhXNRSlLzh5pp+Rn9hAQUtQ2QmOhiEKabGBnqthGgQm2Z
+Pzy0YtTbN7FVyT+w/7S9YyoBdohQxWYDs2Rpdhg+tAeBLqvmd5qo+0lUqcXewIyODJuQsu9FyDXi
+utf9DWhVvd4FYjBTmi8QVpGlA+pCzfWEHpNVQaUJBowinlwJKm2GrLqaU6V+aqOBsm+J6h0Zb9WS
+6qMlKV0DNQO+iv+7Dq7WlLJ6L2Co71Yy3aSSG493T1NQALoQKKAJSLomqZvFGqbUyWkSRK5gaqHh
+o1HXH2EiAvkaaWMGN2mfF1cVa6Zox3WP6UJeG7zdoKlP7aXrm1QaWjBtbQaPTY5CSYmk6Hsr8tac
+eO0bL5cW8rB2k4V4yWpbpxM6ujBiAPJbl5L1cClfQ/qglC1eytpw25g/9aXcXYMHeGfhoQgurvVw
+WJmUxtExUSYPAOq9AeVicIm4YyBNDNTUQfFSXk91hhtt3LXsPl9K8OKlHF9eSvPjpUwPux6NXrBW
+74XIWsm3IAMjoh9B723wPlLsD/UKQVN0aQLQRVwbAvHaHBB0PoK70K+7N9qZaMtq7SQIl6YCPyq6
+T8xgkh0D10t/SPDoHhtVyPGCWA3W9mKWy26DG2wF8+UalPScoCzuOQBkgcsysOejKgwE0RibxdjN
+Qw6iu81bXd62mty2d2HRmEepm/UWfU6YXU+WRHcSK8twnqekC3yZvKGHgIEk+eOYYD3Fw2aVyUjj
+oVD4kA0Rvu9GhbrNncolepjDmAbYsKTHWa2UU6xgQ2DAAtKJZnTNGUjlwk8X5QciSG55h6nwZArs
++G3I7XA/QzmIz0ULUNAZrFgX2X8zVKogNjN3lqLgJanodfh6IySABeehc7qy6DIvV/tRt3P8kZaD
+UKfT7BxdVI2TFeCGm46iWblFPLNTmqMcNJOZGs1TY6QrrCxRGGYGk0+Cvw70sNeyeFqVrEhH2X0o
+z7go6xu914LjNJeMunbVYY5IMw9DO48/LgJOnB+FCT+BvAD8pUXQroC44joxm+xF7cX0o09FJXRp
+rZa3ot7AzNHrgP7YKFrtzDO9j4df1Aj+su3nqpFqI8kiGkxRlr8c4HO0oG0eGU9WnM5urbAZmvQ0
+/cWL/OUYs74IUY9s+OkKwO39854fa4qqJyZPHx6BlqfUirZXemkJHbWJeVhfzkz/7SD93EGCgcxF
+/vcdpLu4/MemeS0+fvzjo/zHuc9+lg3h8V+/+/dGkmp9o1ekWoYpcjL/LXvwDzqB8U1XTWsNINXo
+M/3cSBJk45uIgGHNl8VkaMoqB8Y/OkmK8o2TpLSClX4TIhn/iWqIl/pyZgQkpcqKRdgKOAQJHeOf
+xw9/iaNsxq7bKfqtXofVUenHhaVZWJRMzm6HbGnZv+i52kI505EcZhYN4KYFDymS9KMTbCPFc3OW
+rcLkeT4ok24vJXp6BDEYVm+XoBXTllxQS9MjD7/jHL3GCHEtdYf2pBIeTawazH9t0Mb4IMJ21Nhu
+LnXGSUzKmoHdgIFmiODBPBEC09E4EbB9GwytCF7GoliQ5vbTGtN0iWxi0SO+qb5EOalNSKwTe+PC
+OGjsiW/UsQS9Y6wZUNOFET9dePFtY/ETYyyz1+aFKC8qyJmzXBk/l7y1wIp0wOfTssTSjf4GJr0A
+a9SE4weqvhHJnXPTFWA/g4QiwyKx9HfxQrjPEzTX9pzF1jnGH/oYrDD8OOjK83wh5A8rLJ8Ebb6L
+HVtyZpWvj4ZRs1PgkRQg2QK2j+EvDXwsyMULe4TyIQDIKzi5FjdvCk46xS5XcH/XdQ3u7wvPn5A/
+2P5RLDamTdgHGYH016erZQ0CiBVU4zYd+eCjVggKWEQF9WdmzoAOuikE31NPcXVrho0MaeGSNpCB
+v7nGu0sGAaxG4gi0FaebXVIKBB2BKKGHMukFQlwhmE/XUAM1sIbH5pJ0gJuH1IOAj3ZOLlkI2iTK
+36s1IKFcoxIIL0L5M68BCoAyyVKI1liF+ZKwQGAiaQtG0zVnnY0Mp2xVSI5xRzCDCHyfBIKg93qx
+br7PiEWvgzXKIYwIdSDLqDvESZqCZLikPkSXBAjhkgZRXZIh0OVk1ykC9d7O5RXH0VEz4WAfKcJ7
+2BAuUV5yJpo+InIiXsMnLKpgXj2umRRsZsSP1CSoIv8tsyJeKCK1BmPPwezarMrqXDvMYabvtUvu
+xbxGYGRrGAZyco7j4aSRrHJJy6hJvSD8op9SAyYxgRpIhxGfNWvMhj4a89FAgHPdXlI4BOgV57iz
+ZBDUl5yOFbdT2+IlvyO/ZHlAHcYbHk0KfoBUFF76NfYjTAcKLUbbp/crLPJcopogFGUNC1GrlC2L
+eMkQES95ItklW6QpchRWDSUFO8Qd1NtSk2d3OvFJb3LL0c5NWsk4LmtuSSCGeOgH7Mv3Gbai09gM
++DzSMZNvNExhxFVfQlBGaAGVQ6hS+AYLo31XQ1m9JaiF03N5iVHparEE0XaJV5ErFMEQJ8lcWdNX
+WmkNYmmmHmF3ImBZFpom/Q6ZidCWAhTzawvqFgYtOPz3wVwDXsjf4QebAbkvEHCJgOklhetsXZJh
+1owY6xIXA8tPukHnQ5RGDTIOgY7ZoGi6xMwEZj2HLuoaeS9cgmg6Q8yINm+Jp2mj3ozQA66xNRHc
+AyJsAB+/6RwxCX9s15AbTGRN4SKvJvxGXHNwuI7mC4ks1lMuIbqzQyHtJq8Lq+kRHIN8r0lpAARg
+TdfJL0E7wiV0R+jhrXlNysVxsks4T8WX3CEBJbKnIlD0luY0enYrwyvvsn/PA5t9OGE/wZr7M2VN
+OW1W7WqMEq4aB4eKUQxwIR+WlaVuVhu9GkiWUtg3IHeJJQBNyVxhOemVBLVY2KAr7BLcuY4QZ/iJ
+1CpJnpoqje+tILVuc+yxoz1SjmLTS3b2WjyDbm1PhIvBXI10SD+EmjyLOEeZZ6W28l/kNHjTo7AC
+t2jVicoRPpKpxvXdvFcXPQcoJgLBYQmss9hTh4iwtgzypeJJuUlIzihg7q9Quu/asg0bJ0C2abrm
+EsnX7E/VB3b6WGHMRo+vxKzBxmCSFQSYSi6azxEu1nVc5x0Q1gaAoYv3FBK6KsfEJmndqmIk6U14
+Yss13lTEoUuuGS/SvTKhk6SggvUJkmVIjhheAEShYVpYpy4NFpxWcRoFXhAg0gQ2KwsPIzvwhyAe
+esmRpR6AvmTK/atKTgEpZWM1N86iidyvOl55+S0Om1uFPTPu+g51bD4tYM0USVC2ZN/c52nZMKMU
+wkQLYWBllPIYwZyKXx2EKOBcDyHq8lonIdLXYugU2RdLWQ23mdRaJ4g7gMssa+rkKwUi6SN03L51
+g26eQVjrnFB2crKeg5nd1rErGiHDIiGILRB8WOE7knrL8gSlWAPRMGe6zRG5fdUoHzP3YeT2XkWZ
+VHN4nOslt0JChz9xEnwdlFHAat83UuLzsGf3r008zhzsncg6tTQME7fCNgM1pzKTl6UlTuDIs0hK
+oKFyFHLyslNJTSfXD88dicDxPsPKlR/GITbx/KbkjivDgpEmL6cEkMuy0qP7RYS0xGk5/yDyQGr9
+OSI9wJ0nKZL9EF9ih5lmERoXzyaGbaNv1fE+yRZDsPOsEiTObHJwFyPJhGGWKKmAKGugRjOnTf4j
+KxCQOnifrTsMK5D26mXOD9Tlu6eggzLkkFynH2qNkoOjLHNF78esEri0GJ/vhr7EESwAXUDnLFXA
+K6gUTbY0WlJGYU7LPkogxA+NxsOu0kx01O0yA+AB92S8MgaqTxN5CKWfVFLvOLjwpupEM6B+s594
+AYdBEMFA/iLywGE9XlYKUcmBai4voTCKB3aeg3hlypnyMWqSQiKFsFZ/6iwJdwGgAJS2olgcZ4ae
+RCqfggMewkTFzSTSmd3YlIinaM5VWMeqyA0cRFG7Z7NnQFbudRbPVCQ8XZDE9qGW0y7mpNb3Z85x
+U+wUlARJnrxwDZpoOHVgG0mPNLP+GgEnQsqSQuiNEY8kKmRiW2KcrqcgwagnRN/NmIIzJsneCE/j
+0NVkUTfjWea0WjlpOWAWAi5knnSKZVwcoqCP+OkIwhq4/t9zOh7Hca6ixrFEeM+2IJTtLZWc4D1d
+69AOO1dMGuq0cmrh4IB4i3h+I+6NZsOjLBqSIp0Ybeax21ffs1AwiRWWq+g+Qi2cO6Fo1c+QIMl+
+TKqCp4RU038IgtTEWaaPrA0Jka7cZSwr9zXCyhyXZ2xRpJ6Upnchz7SfFmEAgxulShU74wC239ZC
+iaoIQCzqITGAYgers/6GfN44Ub0qbmOKz7eB2MJYgjsq3coM8sYTu7CBSdtUSuWsq/zsy4mi9V5C
+XvSrkZFO4FH8ygWf6llpuaR8mFd5rnZV7CPYn75bCuQjf5KVgJhHVTLrjVTWwgFJrIqCthVJRjG7
+kNXZzMgVwCU6VdKxpfX1kUKQxkjcSnw1LNR+28h6u0MTQi4DolHlaUlTQDuWMaLnbwSQv+yaEnUz
+LxpMxxyuTutrTOLGUet0vJ1nVR39ZMAL5/AUFh5p2dHfCukzpd6gX9L/xgqufbFQ6ZXYFyTvVpgM
+AkkTuI+pp6aCualqVYy+073gs+rkldDZkKi/J+dRUcnWGMJQQsO6wLF+6A1e0W3wctJTqEJcvDFY
+04TdrvZf581f0oxoSf7dSfr/vDc/fj48X77896Ozrn+jVGSxK5EkVdaMtQv8+9HZUL7RigaIzoAi
+ov5ixfnDb2N8k1Bf0oKn38pkg3z1z6OzJH2TVAP1JhjH/xzsh97zz0dnTCoyNVjcNrxBzuprWPTP
+aqdwMkikIQ/YbZOhzl7/H3tntiO5cmXZL6LA0Yx8bKfPMU8ZGflC5EjjbByM09f3YkiqklStBvRe
+gCBAujcyIj3cacf22Xttm/pw0h4tjDjtejx2Clz7gAKM5HTTvo63MPBdxG7oijV9eCyAun1N2ko+
+6DVkLVB51gvMLDhrTTmVVNKl8KtW1n3A1IppPqa6TM5tx8lRe9bwFEQzXW+As/2TI8H4ZCMdogNM
+JEbpFgDEor9GjUzrfem1tqAnoKI/pQQLTedn8HtmBLwfQGkTF+ZAvMp2KEh+J8ljCbklR4bn+PId
+biRaMSHFTUB4Rwi/OG4c25hcQU5ohlSCHla9YxFRXYlbj8OtXYzu7ZSb7mnKwGnUZQ6VBAfkn4CL
+Q0ayIoke8iIoTtQX8ox36VK6zReE7dJq00vgTG8kBmyGMa9K3l0dJredEelVwgi5rdPuNRvy7MDB
+7l0Zw3agrWGCrWv2uM5LcYV+o57bonyk3whiFdVn93okRORDWXjf6tbPM3ury2I1XBRn5MAvPSpC
+Fi90Xu2lGKj6mAv7FcWS5p4iCr+QiNJ0QQNxYxdWnF2Xmou5sVJv16NGHmQ9piHDTMXq2bChIawH
+J4Bi++VOi5rgJr1KcbuM68XUaXSogiK/tIoBYCEpmNfvQ+TAFsnJnhjWBTwTY7dg6nPqwYkJkQ/7
+bAnCmPBZfloyO2HeKHlgkl2Zj/wq3R2X9/KagsO9WSubug0Sm7vIzdqj267gNgrRMlaL/jgMjDlB
+OHisBhjiO9m4Fyip9Y+VYfSAnB+Qzti6Y8AsMNX64GRi0XrJQ639Z6fOKHr0G5YyQdyllNfSmd0+
+L52dHrG2z89wgeR5ksNGB+PvW4gy5wQPxwMVcOKJ79A804dK1rp3Uha1ajxUA11C+VhwmIdjs4cn
+MQ1P1RxM4dENWbzCj+DmntN3w07b8mD9XemGGPJvFSCd3j+M0xRlwX2KRkK5bMpKujpX1A0i5Pqk
+zzz/WLRpFm7N0A55qL2/tqpx7rRjWTDtZpfSKIFAQmBgGp4XuNFrdiNwJRQO19GsvkwIYexJiwZ8
+d9vsKGQef4cIQXsfyvwRCl52kxKq+yXU2r4llSB4VizLpYuW7Cs7YTgYE1TQxzFgddF3vFiqHdMK
+aqTqDyYMm+eyz/Vx9guPRS9R1bPTTeLWlPDbGfZb62MNtblJsc3GYvaqxxJY573N7fCjTMgs1NAz
+ftSujk5MZfKOpcxqo4slxUkB0HleZ/T+HTF2xUDdAvofJ7+6EWu3QdoUOv40UcjJCW4EcBdyeXTD
+GHHPLVu9YPJoITB1EX99vR4V7UDgxyJ4gKjr9WHN/eCaj4vgZp4MjxOp4Y3R8OoBIb11lS6rXa5C
+qExJZ5iGwKY9h5EzxEhaBfP74P4KZLZ8oTgaIqKl+vbW95yntfYUCyE+MELm7gu2oupZ9qu8lRTl
+HLIs9x5tz3jvslnrgLGQFO7k1sF0deYOFg/jEq8jEST/j3Id97XTaHETkT562vM6e58tq39U4Ovm
+nT848sX2M7WnggSUqpXq4Avl3eTw2c3upatggeRzvufGxdhPfiQ6cUGmdBzhEohoEID+SN1cUI9h
+W/095krFE7MsnlBj2F4hnEb0yywkA9mhZzH3MFXsoSjTmjqCR977bbSggLB23il4Vt9SOORwZqi4
+2aUNdeOKkgxugaXgf+eD/0pgP/pe1dnIJijwhjs2jcFLvswZEqltP0ZlW76sKvKu2Zj536cucp4q
+Eql3c1+CTGVyXWlvG9gNyVr+aW1+HFbxenxktnQPLCmLu8Lpra+Z5QbtiTJ7eQ+ze6F4dh4vPIsg
+U/VmMUfJguppdlq4KOEc3GS8V342rehOM5pnu+dHFbutvqjK90xU3sUetdkD/oE96nHl7135wxZD
+eMJGNpNtAqDNvwJta284KveWo2k52faXvvT1ObeCCQCQGH6KyaS3DqclhgkvvK+TmvS0QynfPSLA
+eh2ptX+CB4LYOVsgZlWSD3GTeLgu0s03ETn9gU6j1GDaAcEzuIX1OECZIMbpevq3DcP5PPdqQb/q
+qrvW45SONXHMu6IO6jtAGdCHCp0xrlYhSfIyGYY39PCMgurQD5lq+/I9MZyOweDgWzCWDE5suLJn
+Sl3sR8Kp+oT1C0yrJbp7Hj36xtYloX72jzuQLTkgSmrqVvkzwsIiLjQhhd+VRIquVWLDsJC8qhhY
+7GWP0FxvhBX/u2mgylQlAKGIjtz7OVfWXUC0L7YhdJDAR03+hf1p/uLzoT4pxaEW56lMPoCCJaeq
+Wu+MphVprrh+T05cJahVjVtBJghpiKGG5iEqggiS2vzRq6S/csX0vsgIuuDO9KHzDoVWxROn8Ndt
+Vfujxup1WMm3vfHUa++LLAkvOkzXRwCneqfUomNHVm8gz+5bB0BaP0fBjQ7s4q7q9HDsM7xHtfWS
+UQO3H7bI5rFU9ZWsJEYp4dyZBYPa7Jrh6ENI4Ufg9dznIulvbCWoeWKmP7EIKPdVMdt3/UTMuW+r
+hnhyKC58hvFIea4653YnrpnPtRzqY/sOrt+J6SHyD7VwltuumJor6lGPADYkp7m38nNGb+Mxcezg
+JctFdOCYikB/eusjKd3lQeeRescyqO+Ru+oXJ1/rUxCV/cmh9+dY1TQ+UmNVHE2eiOuSN+MDdgw4
+6+G4g2JtjnzOOoNRCZnN8V4zz6EcJjpQrsQ+t1Z33E2uYaUOWbEeg6Tdj1N4rkkOK5u9R/dNe78d
+gq4PMLwiLHRuPaOKlM10WqUwW5uhlzzBy0jf+9o+LXLp95NDzWsYuB9szad7YHuMO4g/Cu2bwh+k
+31s/QUy4q3jjzfsOgWWNq/J3JNvot5dww3P8oV33tT3wBdA27ocIlBFdtAENxXK4dXXP59K03SuI
+Jn8/hSn0RrbRAoUsSdT3cdTrpQowO6Q4qPjUQ2LaOYn9jqsGAmST4RJwzXSkHg81Ip8VEWoqfHd6
+dZyDW8zWD3uL/rJDbQ9wQiY0wMymAntFqOtn95G6QXipKCQUk1cIK0vxtber4WClkP005MgrA+r0
+bTL2eARb5cb4OoJDmpn612DL5JwRvLuv01Hgf0LwRWMXB2vqvb2qIdvChNWMcVkf3XXFmh4Hu2qe
+oAoyvY55cSqTKLv6VtqfFQrmczQuy6nj7XoRM81Mxjf7DEPwVXQkfamxEfvZM+IkFs+62j58x9og
+OIzglvZ4Ld19VmUpKXzunC1uk5u2cb6yG3ktZfpuYafY62ibM3UBHzyxbljWiZ0jlqfEm9q45amy
+mzsYN4nq1n1rOctz36YpNFj6YrIMVso0NsWxsvSXdaqTfZnyG2U9xu8sx35SZuNvz+vUoQd2ss/8
+iYpsItobogw0whQzU0FLq/qHrb51J7Mk3wWruOezcm/LHlocfidATWk8BCtoZ1ABuy7IftCGyiN5
+6t1jrvm36YpDBdX2x1BUvzV2BaGjh8VpmzPK6xI7FdyCvJFI2zb2qITVA/8f+daSChVReNckXbir
+5I35sPuk+W2QVaGO9JZzpoZIxGWJYUrmdn6A+Nkfq87/hgWtuenLtDp6Vi2PHq0+p3zIy2fqD+et
+yKI7BPnwauBg3nvV3B7bxj9JK6RDfakM/2wyce/LW7Y8AYY256vrIXjDTc55KNdvazdeOiorYWu6
++wUhZ1eWKCft0Cq4QPTARYYCSCcqSYfzulHAdTOwg3ou6fk+ohHi3bNyQNWY967LoKILBFne/Jwq
+JyRc7Kuq9K90xdMvNdA/MVExHo8DCmUy98vOlcXwAlOtu2BxBNKdTxBuQ+ZwZR7DSn4hEVVsnSPo
++CLZsdohzf6HUL3m6wAqluOrWU+hXTt7nZbjjZY5tXieBU1QPObA5A7+2s1n4MXxYLKL8Ok5r4hN
+ixDmW/XHCmFkmXtqBdsrp+54rru5fAEkqC7UadiXKVpT2DszTD/LYbADGhm6l/+1JXTZz+EftREX
+UQO/97+3Jdx9HzZfQgOf8//lS/jrl/9NXAnIqrqkFWzPw2DAf/03zCQI6Y6OBFO5pFUIdYVv+ndx
+xUFdEYKIq+9wzNvyH30Jrv8XWwA0CTHCUUUpCSL8B60J+Ff+WVzxMUC4/Ad31JanBZLyz+IKx3aW
+MsnhAC7zgE2vsb03lEJpIIrONl41ljq/x6ldvsKwt2M7rKmvi0zrXLQ7zXEja+fF95Z5D2FsOddT
+fmNhiHp3ZGlY74bFY1EaFBDjJuzwUrSTOcSW3DZo0srH+cA9pkYTxPG1X1j6pXGWjA6geDE+R3qc
+Xjho6vc5qtVRD/l8DYsCbBW+Q2a3ZXyUbebbJy9ryjcMFtvhSCL9CEmoE0dbpoUTR6aX7wA+uzyu
+5TrcGpMVH+gkKAJjla9wg9vmFyoYP3er5UcG5AB2lvvcMAqqnb/W8yvMGf+tH7MItNhMTZ6wPBC6
+Hjb8aXKg3bWMxrush6eyT/pU4AVc5h9FasKTH9kWF97Ff8Agnd81WB1Yznm5uaQrlcNck1pLfO0x
+/+8Yvj3KexOMUjXiCRcYMJ0+VY4P/ljMrxWgzjdjiQgg5paJt5NZeRwmE69YOK3pL0PjrMfaY25u
+fezt68EuDbS8vKScjtobqHqFBYCFptL51Qam8YuKef6CBKWo8YTG075MQwgjDC/5DxQlo47ArplZ
+sc6vN9PE4oAdVeDQ2zhvDbKhtIH7bX5HHLa8HowB9T5z3OKl8qAF08zspL8Sz9o2NOOSL4deb0Cc
+Ykn0ENuWP12Rk719MyrvI82W5CH8rJOkf0s+9kkV7qkczzHXy7Lf+7aBcsEvEtqJjW63UP38vgRA
+3CAfTiy9cUg+Av61x0OZj8wgfkC1Q+DKfs8+qnlKTCp+IvNLcP1b3aY1O/HQVz8zq3yYuERCZQwb
+hydvyz4w9e3qglQaPYSlp74YVw6nZg7Tt0UC6B4Hev3iZe0cLiNWgobEwZ5cEp14950TNLci0/JJ
+5WDsa3f+bVHWsEvKKX+fAYcChGctb3tV9IFSLt6SyfGnXVB57VsPfu7Q4p1/JxjhqQsUG35DSTuJ
+A0C5+la4rfWNArbIOtulwNLaD3XNvocgxgFPbQi6kTeqXQTASbmfA71TpgwfmmDitzmugIR8z5iv
+Xm3GB5WV+C9Tv4QYZyT9FgeGdWoAP5F7KcLhQ9ptIL5SaF0e8k9AH24JYH1DTwzhKIswl9feH8NT
+yFIeTcZsnD+bbmU0CpsGAHQdyKW6psVbUHiB8hnNJydSw3yXCO7gLxOOSzb7OlUxoJPpkd3JwI+Y
+gySjYqQ2V5pA3ENeB1vqwc9TpDOX2yE3Kv97t85ls+/ypq87tjT+/ISi6/9KG8CuGCTXaA9w1nnj
+1GX2qKbytLIScqwijC0xQKkYAioeclWpFzmXjtxNUmbgSvM0dF9tMy5PpQWsnnDUn2CSQr03FDOo
+G428JWPefUn6yDxScZMYIcFwg9g+DHMSCRbfvCKcGnwu+0IH6fNUh3zGN14OS1m38T6aiYAFTZcb
+5gJLxqCOk5tDoktgSIKYh35Od8RYpL+4+9fhOeDSGsJJHGlMK4oCWkbGFzUXWlf68iyWuhoe8IU/
+2QNKsWzVV6uMro3XLs9sh0ZmwP5bnSbt95bagGvaIIYiHIqzKaml2kFOSopnN2rlS6dgCR1YJvLD
+QjB/7tzoKMVCG4nO/rRR0+1sYJE/3RC5eBU+dPTU1/VXA7Wc4unK1iouZLus5ybvw8PUofDfFnQT
+eIeeh0V2qoa+SGjn5BY1YTwwq4hrLBbpZlby2U6JLKJdkDYFaClzsEP7TeVdJjS2gUGvszz0zSLD
+uF+iby79CQLx2B5r8B6QPdB8fP+L7VFJR0sC8mhXHp0V5ksoNTkUHtrI6TgJ0lipoOguDL60+DQ8
+pG6DlHeMADNjn/UiWwsKraP10VL6CJoYX2sWWPZ6icbGfJvWVkdnYOiKptK2lYAnsToglp0VJojd
+QJlsPE7Ob1jTsdiaXQAhg8oJfB2cjPAHyRz9vWvWLxSao3qJEcrOJXH98kFyLcckDaiG3gbtvjkT
+t6IYTI8lTu08RBoked9XF4ztSewMASAhbETUtw+U5XiAnt+4NdkbRo+a4yWd+ER5/UO0wkyMsXrQ
+K9PmnSHDwPXkZOOUjdcyr/H7Jl7LJdMl3/ZQ5hlnMjUrqBKIigWk/qxvr2Xls50jWukVh1IM0Y0w
+PndAfylvTDCumoK2rvIOSykxJzqI+YZlcEpvGXLEM3vM9XfXVNapUYV6szLRICQZ04sTq4HyVpDi
++N0S9HxoDXerHxRWK++SqIjFeTNycJce4bdH+gcpTYEhi1yXqU7bMfGkrDlmVTc+g0GcvUsqOnI8
+WY6Fh8e61EuMkuP8sBj94T6XmaG0HoDXsqN8gufvVCpqYEgHPVOYTccwzQDDwA4JJS0OVZuc0yqP
+SF/NCR/eTncUhqMsp905zZK2v9U6gHBlWcvBtxMPSu4wgxr/hOGW67SeCwofelCZFb+Gn9Dj6vEm
+zAcenrqWqb/vQ/wkEGhs6srR+LEWLGO/b2bpJ/0XDhfZ94dGOPM9DI6sPbQoI3qfUlfCPYVGD3fH
+OzHTvMR9MrwZL+rdvcjHk1qQY/ZeFwiKUhQVsvvJ67LpMa3o18Fxt+ibsRvoe+HWHEpMKC02Aywf
+WBTnsYqOTWNAKRLewEFazJpK5DwbuuhW4/BQe4PbvtvXbjmzM8bQZGh/WXbe0BQcTFsEpClIH902
+aPpP0chf7DD3AVpD0XijFdMSmn60Y47A346erfYzfypVzlW0FHTzbCgza2jb+8RgYjhF3BKb23lU
+bv6Gr91qrxGAozMZmvBOrsZJSEZqU+4HsgD5haYjxqZmtvNXW4zBz3aA2xoX3C+XQz1WwLIQQiL/
+QN2uPojacXZ0toB0dtLlvXL8AHlqXphLMJQgOAP0reVp8ipEc8du+ICpiFb7nTSU9pChqPWDXS/l
+6wjrKT8FTVE354gzCwt82JTiwmSRgZSE3RcWzgmVHlWqGMfB3sk+KMQB+iQlN0kaoKd0MG9tDD/z
+lOHlohWsxW3PrmC9AYTMM6Q/2ya8ysbY527maQc3a0GjZUXyLU+Zh0+dspdrT4BO7HlHm1MQtj/D
+IKfNoojJpeyTRiy88YNj4omTPVQvLs8ZSm0Ry4InPAVflKLLaCJWZlNxIV1coeE1z3S263pZsxsr
+TzIfv1HuemkJBMLp+y6a/h0y1vvi9y9e4CV4lxsHPNO6t0psYz0dT3Hg+zGuXSQbb1ePzTfmrudg
+zG47xzqG5ier7W+o5T97Z7l2QxRcAgKO9hnoTHNbaqdrL0uDUWcc1z2guFY9Dmjt9s3U9pF+Dajc
+agI8PnbTP8/SuMF+GMuvRZXxrkgNyb+Jd2fRZohbSKkC0BdOV+BpgwrEE66kTMUrW85NkXXDo26M
+pV9tZxGPrcUbbE/b+aIubrfyNdU0TF5scQHI36wg+sG6aaGlRA1/6FGJ5DXQOUT7qbeC7YHXvosl
+mn5qv9+SvzOQROK3fPY2CJilzhPMYcXbqynsc+Ss0GinlR3ifhg8Cr2itZAHNTZ+gW1wXm/xFXXZ
+sQiL2b0u0YJK2kYa2WpmkTvQ+rkCCJQQxYWTX/s1gAZeUQeubisK14Z9OTJDU2fGtLOfyiz97jYK
+Oze/L+5ZbQum+85Sjo1hRSxqOXRjZOTRT2z7V154SPodnjr1hmhTsEzVnXWLD9tlwTXXsjj9r57w
+r3oCAQL8Cv9eTvg/5fe0+d7/owTx1y/5m4TgBX8BOiAld/TA/2zd/C9/hhdSriil5DvYAZ6ALZPy
+dwkh/Av9h1LYtvBwduCzRF74e7TBsf8CPUsAGdjyDcAGwv9EQnA+KUn/DdDY4vAIGegbAhwXPMx/
+jd13KcnNJE2xOU9BoB6JPyyAyrGMU4a1kgYbxnB277HFAd7s6Orl/CQYnZxW+nvoU1pqzNwrMRp2
+8xKLvr0LIZf/XtjevIiNg/2ixpCnhq5tjFRUTLzMJJ6fU7YfJSZXVH/iULq4sSJFcpDWZPYXbZ75
+8tD1TZmfbKiot2oUafPqVYP/zJ5N5lsh0ZyfbZ662XtUOVoeicjZ09GB6gm8kpu3t/c1xQgHUUiO
+FI9KjaGQ0ZflMx9Mzo2scLTFhqH4Uw8+WXl6M4wRDGFrixiHgT+UMexX6V7g5XX1ffCZSKZBkwWh
+ameeVltkWXiid3aFcqcPjfMMBKtetiBe0WCqdjtigyCvHQJYWxja4gmQ4uFf2vrgcgWioWiLTqvP
+FLUavIq1dpORrk7wx6yxZvTM9jRFFO+z7sPyvBp/co8bAnVv6S2yLe1tN1F8Jrk/Q93+lu/GqErU
+O3MXYx2czwi4Z2qv3itNWoTnMinxkSvxt+wzOo5nhhh5syXKsZYSLu8/g+YwH9eXYPCr7FAHA9H/
+5jOWPrq6/WM+w+qUUpLVmj5D7LhECbSvn+H2acu5d3+NvNuJMdSaU3O0D7dUPEJ0+dFsSfkUCsT3
+6jM+P+a6e2g/Q/UwR/kJFE0t3jnZcvft4ip66PgT/ANq0RzdYY/1HSidgf3H04X4o6LZtnbhlugn
+0GGoqhgtErZujdZ0N+GuDI6IYPypSCyF4dLNo3q3jJoL0mBn8lpJbpMHcL6SWHcNVbGOJoKmXTBN
+X0M665cLvUxsdfDcYT5Niy23GY5UhcSVsOClS7AG63We1rE9l+wC1xjeJSgJ6Rju+Xar6f+0ScXv
+Wo6Fp1XCH8cpJ2k9pCH6F2c0ajNdBY1743YAHaAraq2IQwbB6yBrgKlN1kVkErCB/PS8jY0QsP43
+B4SIgQYqFXjl2Q4kc2yEAEHZt9W0Ji6NxRA+9ZvxeQ7M1t9ELiE44dggRVPjM3gfRObUMYlFbPcq
+sFrnr8fDv21P/h+RO4/HiU/SS7gop+Sw/lmanEtrcNOVD3nDkvqXM/uKZhJeOSIJUvw1cfdvv5fz
+zwSn7SG2fTMBapZ0FoazfzGZTU24+gs0yt3UomRJnqpWHASyv+0s9q0L/s3jIIw5cz9y4znL3Uuq
+rfL8vwfi/zgQ/Q1n9v85EKvva0NQ4Z9OxM+v+buoLv5CYTCiuuNCZ7QpDP+vExHHIkQg3xGOR2ov
++PxHfzsR3b+4YCFdeEF26IKW9BHC/34g0m3MqbbV3ts4Fh3xH52Hocf31/9wHnqstT3phYj0sCno
+Iubo/Ue/oj9RPIfTrWXRXo1flAFevB5qgAPuR+EFbnU2M4l/Zz9nXTdjV0R25ENv6Axtvtl1QSmV
+aJEjELGt4ciiO233RedP7IAWbv3fuTIFVybC0btT9VaJYNOjqR+Emnrnhrd5Oz9ajJfpZUaRzPZ6
+HeliKWdt7RgheHyPo3geGApxleupOLHoYGjsSJMkOxOEi6QBuO3Ut5piT+sZ4kCETy21XKRjTCTH
+om+kvDHRYn8jqt3whyiFxcjBH5hGBgM5kqv+BcsacO1irdlrRtZpoizJBRcb5JA3MJwZyh/rkmoa
+/9byt84ksW5tTmPRjcnJ69T8ulK0AJi1CF29nCw9OP59nRt6EpalUz9Gph5cQKYdLmMXDNXWM0EC
+vkk6JO084W+cslJYu68pczHdEhOyG8EF9d59NkipurW8a21CQzF7mi9nj+w1KRyOn2BlCGnbeQzc
+fZpR6ZWfB8+u7ntG6Z3fz19rySWy13AennujivxmTnkQ3E2RENMVD7NSWMJU6U3XekktH/CsyhWX
+lSFSvyvV8sVWMzgKXIHsa4/Mos2FiSo45b5DtHDao+HmVH7heGWPeS5FJqtLX7Gj/OFM9CUTVyvH
+2q6K2PUEpVDUUgWkf366wtL5CoG+HbHccwj645H6H4NBKitm4X6hq1Wyz6itihoUiPPqBxyd8OCY
+tI0nP3VuEm3R9cBG/k/rDIodOxtpmVJhmQtdvfRr60Imqqjr4z1reK3KwBufsQZsShqGmeq0zDh4
+L3NTJC3gH79LzgS+DU1s5POLHptqZomnbugTWrUDF+sOl2wAVNzA+yW/afK2VxhOTY2bn5Nufu9n
+Lv95AUf7o+2Rmh4iTPvBB8l1qmG6XKXubdAIb96bAnWJG3U/uf3FsPlVP6XqXNeAZB9c7tcuBVhU
+uRTCexiaxZMjayyrGAn/SNUs5KUaAlK7aXFoKZnJBvixRIuO+77HobsAk78phPYeAfLMv1xjVXOc
+d0XxqFPO0Z0blSvQaBAik+Wbg+SNvrOCvtujT5QY8APzw19W/6MBMI/dJffjyp+KO54A/W702nK3
+kqP1ZpYd2NeqCy0X+F3LdN3jIDRwmgb7zE4rulDY7cdczghUsDXZwAjlER8AJcdpdO20Vz/5XJ8P
+S+Ee7IptmunamyBC1LK6gsacBCnQ0v4fCgXyPaTxp6aHleTn3U27uuuTjTyKET805FWGCLa0P5wA
+Kui7WvRih3IkgUwv1n2yoEGFTfFA+u2HY3od+7LMzuU0zqeqHnx+C7Y+Tx6zVOlizZD0cRvqDuwQ
+q2Ow2MnZAThEjtJ+6PjB9ohgzlkl9BgDTGnF91EzY/QLl+qpDZ0j6dh6IlCoIFREyPwlhsdJXs1Y
+vulQ6a03i0TYWDwCISHa5mQYO0nJOMemDpsDFtb04vphCWSLMUIUfbanq+i7lWwN3Wwwnit3hLvd
+NeQxjAKz0vXddbYrjBzd6J2KrrWAjS9Z9ryyDKHtDKEBlAJlJ2vV3QRWYb044+h8oBSX931Yhweq
+CHimRBE9owUdhnY1Ys0plxC7nBUe7dGqfll2OzPTzFjBKuSzj0AL7zK7q3vwbJEf5zma7gjEzS9j
+N+oLV/D+TsnwgxCLQ+XjPNyMKBOwJraO0cStbzDzZJcOz82uDbr6lDhpdWmk8Y+cAT88d7aOvQqW
+m8XpkpgPF5XFfJpIpIzZqTNbiJzVx700Ux/T78AkHJRBdM4HEPJdkKRPVekvD96WqCTpTM1oCYHr
+4qwsFDFPjl9xolm3jS2Ps/BxpnTzfIoqu3xrOtTGtne8+9S29D7wMme/GFaUNUHRB71oF2jNFia2
+6z59wsKovqoqp/qqW3ke1vM5WHwZ+wbVO8qm6GZoMuvc1rV5sFWVvPoJuLEK53CM5Ef9eic77Fxg
+1g7siCivaMRITtiuyjMp4DF2hz5/6Lq2uCt50Hywkp+viZbj1Q8tdkxsVDj3htYE9gmJHHsuHJFd
+tvhM9PhXIj6aKXPzWMhU0FpmW3iI/fUpyzQVu/T13UJWS56JMLwHbi7vqSrPLmEbACGqTOb/pvxZ
+HQbVc7v07TlWq0mOclW0X2DStnaAgJwXKhOy+wWveIWA75if1FYMm+NjwmpS+AQoec4MexlU9WV0
+aKaCoLYs5MBSXp92Du8CrSgZyGQv/yCYUT4lE0KQte11bKNakAL54PrUSnIBj5u+C+ZbllSaUB7W
+Vjo3i8EWDxj+uvc+xMsQF2Qbf+m80OeSLFOw69O+P6VZOT+2npO8NPmMOt7rsGx2QWQhI/e24YCQ
+83DPkrq6U7QzXKYVlxhTg3+XTT14+orAnWFAOxO/itjRjHg2nQUr0pDb649ylPYL7UIfAeXXdElZ
++UBmsUfZ9QHsNEiX7/ZM4/ckWlaMoSDpEZZL/l30fncVOWAWv16K44I89mi3fQ8tSuLLZ7Ln9+cQ
+A60LMmm0vaZXQ6vmfQpeqwuCgHjo8tDwM9eT+w1NAjrUmtvncUHNpCPoS7Mkv9cWca5uy+Ro4wHL
+x9TEnp3qt26uHqWcvySaa3hYVPqast0/hHrFtoeGtg+Cuf4dRQXo/gU4QYmn1bF8bAlDRhPMIn+t
+22eTuxb3y9LmXK2XgS7VNftigL5sSPt7V25nQ5pcZ2kHmNnR+7yWm1td+Q+zn9sPtUjkeUhHzTpB
+2o9NxQ4GExfQNed5cr2OT6V9G07+PVa/i8rC/tXXfHrAyZBoZ6pojiE9AAc0mRrvbc1cR3zbDHAh
+QATMl94MHOu5a+18xVKC0xSNQxby0UgDSMfvv3NfnVlDL/WVtV6NH9nnV6X68FSvi/tTWzkjzjQh
+qGAAhZk1ImdMhuXJ57KZECmb7ETwYMJMgr3CnZIH9HjK6UwrbkYt8oPG3P+I9SR9KOizuJA5Zs+Y
+jezNGs/bh0yHb2FPdSx5WA6SNOJbpVPPRJha2qZwO1/BVA2Luc60nFwrgQ+twqR9Ru/M8BPPag3P
+YZKE9y1e8F8t1VnL3vMxle8UHJ+4Cbd3u019bxYntunvBM50onlTGt0Xw7QRprxs/tFruhB6EpX8
+SB1J1kOKUjCe+7TdFuOqXN07Hkv8VKGj1RNmOPVE/pNAe0qDGp+ghnG2cdCtD7RckHEqOHRiKAsh
+Ttyqep2SfPOFVNP2JyyKdXDvt2P1jkSErOAKjsie1kGSLmCpxTF1KvdjNi3buqitntKM1x1wI86G
+K/wJ/5FVpdcfFmphTrJDsbo2eRd8YXnj0ZWB0CTPDluTcdey+fu/7J1HktxYtm2n8iaANGjRBeAO
+93CGVgx2YCFIXGgtZ/Ptt/8oamJ/IZhZFeHJjDC+djWqLC0tyetQV5yz99rFCQc0NccxFSE1D8MS
+Qp4qp7iUqsJQR08f4bpZrPF7XcnLFXJJX2KHiGkcTsKuss/MqG0eFvbO0UmdtZp5H9l6VR9k4o60
+HfpaIG5mDrCECrnUnM5A5VgYFqfgLqeKYcJxa5HVjj5+I8m+geXC5ghdrLlQmgPrmJDHoUumNeHX
+xqB/omeVNl4kiqX1e0GAanHF3qXIz8aZUPRvCuZNhH3xGLOZQsIyzPskzgfjXAVyR376wEYc0yin
+C69F6w3SzrG/z+OQPSCksPxskR7TkLhOJ1ranUUyoC/awrow8TTHzywRvbgXixF1e2cs2TVk+O51
+UF0ijroIUVOCU3cqta6BrBjH9bWEYUp8BU6YZkE3YBVAWtoa6OBruyY+LaNbFCGIaJznVLMwTbgJ
+vDxEmw5y9A10t7BkNmGPgrllFomX0OQtffAjy1NOaxgXQOYQnm04UXbapstss+2l1jTuVaqy9cM0
+sRdf46iqorqU52k+BXfXPjRU0AhAEb3TfOcwe20L1TThOlrllQVOLdBViR1FdKPodjPu+9lY+A8N
+1DyqNywcwiCb0iecZNShJJn0+7wsHeRSyEbldCTtrn7CpkbjCXFUvFybMUyHTaXNEA52AATt+ZZw
+EFpKmp1rGOU7nX2LX9vVPBJ8j6tooxd9t0RulyconJO6KnHwUO+zrjnstOHXxp74HOSmorchdElb
+00FKanlkGFPs6zbsJePmjiWxIInaJjCSv9ZEk4WpRDY0Cly9U5UT2l2MyDRkcRzwRhQkRbX7ttZL
+h11vn4xnKcQWRPxLLrptBVOx38SsxQ0t/6T/ikGHdjOY2lw5w9OjXREn1idoyPrQaqxtI6skxRS6
+1D9rkZMihSfKL/UgorXiQEt9jg5ktlj59VBj+fKLPoq6WwRFg3UnIlRriBbaFasXdvahgugSASPs
+ZGOfqFm5SylmlXtLHxDmalbWQQhUxoS+uZHPzbAVlAtNXwULdOYQjfWSTIW80dW6uB/NabrR0kE/
+TWqt2Bk9+DH2IzbSdLl4ikFdBhPoH+L5qsQcXuq5SwtWOtnsT/EKKpz/C5tXAy7pjNbXyevxR2dR
+dKTYH5FpHkS0obfFKjcojZDCP21K5ClBxfZh3sYSfujK1Z0aXU5VK4PMglSHJuLyaKlDPNxO1lun
+OlJDiZOOYTTTCWauQaMtrg02b5g0DoPhO9bSHjiGxlfImOnVb/g5dBRBGhhGdG6Zq4Oa4ro+mmpH
+0D3WGSB1fqguYWM9sO9arW9IqfHBqcA40vwnvP2/dK83dC9HWcti/1zl235/+d48Zv/jxy0t3/cS
+3J9/9s9qn279QVVOIwbGQBG72on/Xe3T6X/Zrw0nWWWe0VcP8l/9L8X4w0A8ojiabvwpk/13uU+h
+gGjIRPj9ZV7Wf6f/patH9T5dpuZI1VAny0ZVLWhjR/W+uVnsNqfxS8GNwlOqmKP6PA1qIg68jmP9
+AgLAsbBSWUGd1F9C2wiWUt0qWnvIIwg3+IAS15orP8seGgu1ty7v5QhSQI2QqCyvCIsnEDZmx9Pd
+L2n93EwlcZW2REZ29b21k5M8xGcn5Zdj5dRYHwrPUKAoq+a20xr0Bpw7Ko0QPGd8YBIP5lDcxUsd
+jIONOJd2czSkXq8twFidi74ywErnm0Y422HMsUDi7XHoAptTE0RqTMYqsd9mLH830vCazt+usIn0
+RDYcdKrzMNIEmBPlRJ2r71qvX/Mhn3VGsoGdHLRWvEPuslPD7BTj1F5R221ShFiiIZ21RNwXWvUA
+4yF3YyM84c7Q60fS9H2sTjvzRqVHriDBq/q7rLOolnIe05YmKOrE7boaZanlgSrZQegJCof80aiZ
+XFNLt8bc3xayOFA4IC+cbhdc45ZjfdIPmFi/ofylLsrmhxAwm9qK1G7TWN7U5L7KuKQKCQrC+GOe
+b5cE8A8mL6k19mxc/aZV3dKZTywkpRTM9tBHXdOw/HJ5xFO0njjcfij3eo3aIvnaFuwoMeegSKCn
+AzCEQPOsJ+X2qpIR0Y33UTxtY6MMGh6ndRaBOG0ji8UcdeEMEWQ4tbA1mMj0GkLGuFbYHBtkplTM
+tKBSm92qtCnqh2Y8aaZxg3WkJ0jSUD15vOrFneiu5/SH1Hbb0mq2lvZNtAiCkxMpu1IFR2hnt0ht
+AKXqBPcgtim0qjRk3HJ2PFqV16qVb2w5eaC2EIQpTGfT+jJR5htQNOlJSFi4IbZtaJ8TNbujIru3
+LPM+FdVFtBj4fsddjFKQVEU/dniCXXiHBsZHhXrWhuI0jLpA0YwA9mrrD5WxVVp7zxe1xyWzjYW5
+t7OGklBzZupD0DuE8qVhQHOSpYPjZZt3PDj5XO3FaTwJrirlJZXtw+iwqTTU20rtsLBjzVhM1nXg
+KN6Mgwcx02aetZfYTrbCION7AOehONMXpBTILeSAdRFUS0h9Dnd1kE3heaZpJ9hEA90MvRyWBbpr
+8bXG9R7pzo66HAe4stqJDIqriqiftUoA0NZIEuy/RmN/D9wOQWMGmZ0Z4KoRcAIi4OSRXR9muQrI
+Z+fri+/nWrX2k9PvlR49k2h5vVtzg6+KJMwx2UCfI1y4Jbk4s8sSs45xbXfzc2lInIbjayYdZKrS
+eLfkdcZSaiW49wu97w0PenVo3TvjUC+b0Ug5hKANVLtvUqzbQ5Av486mXhuwW312hq7dkGVfIWp1
+MmpQwJfy2HyuEGShwR6Ss7y2X4olvQFcl3k5ykXaFUi79D7ZlxLlpTSDRq9KSf6kNkO8DcduuEqq
+5SYvuaA+rQ/T3LT0tzGkjeKOmWfbRCqOG20XmalvOF8147K8S0FEZ7AROrvgDLR4lhrj7JvXFmau
+bcuu3AL2YhJtN/RtPUobF+o4bNvcJG3ZUX6gSktovmskfSJHtkB+aSn6bx2NH7bbcFxJK4QWvsbr
+0TQvsW3pi3PdSAomhrF1+0Q/GKiAGgVOBFF2qq/AlbPU8jQ1x9O4M3ZYS4O5nPyyWH44+Fo9KRlU
+t6lNn9yFbVcsLwWq2spw9g5ap34oLkxMai6RqdcjmeHmqO3tvLmR7DAgbfUe6Nh2jHKOcwolLHmn
+ZInXmelZa5EROTQNiZBr+RWhrOj1AEjSbpkX2yUv7TmZuy9U/g6Taj9lscJ5Lz3FZnQ5Jc5eLwFJ
+F8uDoQCQhcpubsxInANnoAxZafASoKO5xtAIZeOksnNaNMaiYQiRrtm8nhoLVsP/9jmPdzEKjZsP
+t0CbtvrX/2ti3ETXj0X3Libvzz/75xZIRczDzkenDy4Te8Jx8z9bIOUPTg2mbjkrxPRdIjImIsxF
+Dn+KfQ5Kn1WW81fDU1X+oDfK7gj0i8X+yPotuKl6vAMyZMJDbNO0dfZA+D6O4bhZo+VD6Iy5B7jM
+tigQzOZjLPVdG8hI4UDKOyh0QK/puCkpNy9fUupxINsXKmaeSNYkAN2MeugbnaNFHmNFuqdDebhx
+VFmcl52l44inPQ/SZOBIxy6s+17VaQ7JJFnrqIszUbMf87lzIZqqJZjkspgDPZOa/KudFNVjJ+Ab
+0KzRtHETY3EmIlKOxWYGdXfZooONvD5qoydYz6APCnjcqASbAZWdKi/tPcAvezpYSz3etjKlFII2
+KGngC7S0edu38fwoWWKsN4Zhw3jMMwc3oY6fFjFQSa18xzQ9JDh5IlPZzXSQcDyNTaJCrCLVIj2l
++dhE6L9VWb1WlwX6haukmZLclENLgVd0jXVWIBN0AssAO/9tykHL8FEn+VbSS2lBItO2igLLTwJS
+6o8SXawgkeW58e0xFQ9QQ/VrvBAKiQuzpIGdmbUs3yCWbQ5LnhrXS+HgZFSUUqYJnGiFggrEgKQR
+d5r1NczWUmxINE6Q6nV5LeMH/ko/UUbGOGfOg6nG2dMyk0OCmJ/q/MZAyz+4PdAWD9UXs8f6AGPa
+ojHn7DwZQpMOWa9f6G0bXnVduHyfh9R8dMxUfWxEmC2uMgG52HZlC0ldTAOdya52qFwL0xq+yYpN
+mIAZ663w8CTY3U2M3WLP3rNMziMMzS8Z1AzLx0nTNxvSKyoHj6g5GlTWGwjiwCjs7gzkCdgPpR51
+NjyiHR6EWoHyxB6dIqhUi/gyVhYBNmuWasBsUifddcscN16CngoKI/yCMwt2KHUa1oeJdAqrOKgU
+sXOQLmGO06TuxqskGy1kZrmmfANLxLFXrzpuQkQSRsK7wcuBc7sq0Wp1KkkIglgT1gsaopcaqbI8
+BnstX7NjhFFkc5RqXERNsDsrAw32ti1iWcbJ3yHbcVJ8V1utLtii6T3A7SgqpNCPLCWpvdmKeBeV
+poM9U5tlbwJ66GXHzQDT4HmaUr3ze6WxS8j2sfFAlIycBAn5suyBhJ5NEGEHUUV76peYKyg/96iU
+lnGMN3DChx9j35fQ/LBF3cMh5W/hRGf8qFrMj5sEbADmAlp2j5WBttkdSLil9Qtx4KK0NOCZVS9U
+8sHtCTOOiJaG3vJAgq81Lg6I97y1z0IH0PAmynCw4zCycfvMfRn7Bmbaa6vW0mvYxpVPRU08da2z
+KF8o0Vh3NaRLKPCpMc7c6q596uuqeQQVUA94PWzz3kFU3KOADQvetTmFYwbmCFcaKvr4qW7lDG94
+GVFCm+PScnyHzwBwwBImt0pddSeLXTKJvTkFX/xUibzN31y1IW+0IwZTG2dZjSMvwhYTmPn7s2RC
+uy6ZG4ZshjXPGBQeuBN9/k5b3E+Wy48HOxJYMfEbJnQv5JsQJFlDjgRWRAqn4IN0WhXwQX1FT78T
+gtH57Bw/Q7Svmpx313U81JEmxgkNS10MEFDxnNvthvqLs0Elka+mNxiymSmMl7VMuu2stNg3vQDM
+F1lV6IrWsu8SxK6bj6/9iMf989pNWnKguqnfmkc3WiyzoDkL9Tgie2mP8xTHtFUXPzc6/ygr+8Xj
+ZJ1V0XTKPNRXFdNbKRD+Mm3SVkh03DYIfmaBttTBwHnBRlI/d+yu3ufEIXxybUf5kKRRvG4VdBxZ
+1K7Atx1dXGdrlcOyisDA173Sddx4c7+4z7dnwr1o/Ue6Oy46Ge/jO/qLa2V/8p9BEVi9vVbbwv1V
+ZAxqG8TV7+KeL5vDgVEgNlXtTwY7fnWPr3B9vG8SMCnpRp2YGEwpOCIPIUCksulPBrS67seXpXx2
+XetPeTNU3hatla43s94QVO7VLh1Xt/Rwl/mPwUPr345u9Mlrc6xG/NsDPPoyU93MYDy9PkDhoRPw
+4DO4+B7c6rOR1qdyPOG8fWpHHyae8AzZxOvVGb7sjSete4fF9pzD1i3u758EgX/8HpTPhjuqlWka
+shDg5kyp3hMGukD20g1AobN4H7pZ8OmzO552jl8Tds5vn50zwR6jI9W6o/fE1+A+F+7JD+/67uNX
+ZP3R/3wPEd2/H0XHppqRx4Q7csvuwqPw7RXep0/q42sx5RWT+OY9pGGh6Mn6fZ3Wm6fUu/luBI93
+19onr/tn17L+ijejTNgR06pgFP0yDGqyiu7oSZ+En81QR3LboxfclI8mCwdNkt6st0za0Rv2cFC5
+z9YptuLdx49G/Wygo4mCbpAAE8xAakBfkqkQSfsZbjxf8UvP2BRu4x4a96R3E3e+/3hs5eNJiqPb
++3s5ExmTtevLji1hS3/OvyGExf0eupUru+VWdcVnt/XjuepvKSVRN+GzXG+rxtQPP5yva9ix6Hro
+lrxqU2wiH0eo99liepTSerzgmK+JiW/eGktXerNe73Llf7sDBOAV7svJxeMn93Od9T76zo4mDyoj
+hEvU69VdqyftXXlWn2hP4QWKcHqp1eN8U5zE59qFcfPJuOss8dG4R7NIYkNt61rGhRnsZeflaehT
+3HEN7xZ4j0/S+8xbJLs/Ppu+Phn3dZV4c1czIIGDnDJut8V94I2bMtBOVf/Tt+ZX48D+WJEiBpXZ
+FSb79ptvUzsv5HUxpam2UbhGzXcYUfecQ+7BtLlsLwpvCJpA/+LsP7m3v5rV3oxtHM2dcZ3M0OXW
+a/TRPd9lW0zx29lH3LBXd+HPXcN/O29vOm/sN20mmn9uvQVl/K//076T1//8I3913Iw/qO0rqDOc
+n2UlXoe/wnS0P9RVIE+1CasESi2+0H933NQ/NFxlUGkME8cazbD/1JsUB8eZra3GNkdRaA3+nsKe
+8tS7DxIszqr8R+ivmwo+NvvohVV0QfRuCmpFWCX63hRRZ7UfO+AsVMvGkIDCfnIgxa0tFiRBqbMJ
+x3b5ERNChirQUsSLHKYNNXcj6aPD5FDt9alq0+tOwYd11MUVMGiFZC75JZqtTrvEoD8sO9JVB+ck
+hI6mTGbtGbBig75KaoTaZBpu1F6DzJJh0bJDpduivm09uhovSQ/0JMv66nZu7TV2IWm/L50uPyeS
+Gns4bIuNPWn0Dmq5RoRu0MVQJ7PD0tt1aGTk8trR9cGfDGBlJbjE2XUWBN8nnSaNT5RWBKU0m8bQ
+ZsBPTE18qoBSIKbA+5Oa3BUvi1VpY5qJULGhO9ZXs+9s5zk0Q0Tv+liNJP41UtxuBwqKaDeiEn+t
+pImxOYWgYcC5MUEPIoouHAFdtWublyUByOdBDsJHLRug5THaJotPwoR5qHvwK4MG2xsMYC0u9Vmh
+tGFlUKnuC4moyyJfc8Xk2EBEulASSHEVrDQ2opDmfKNLkGx9NAUoOOgATjeJOSaPQHRQKyZNBXZG
+J/IZnjKVmUMUrjQaGhyrHDGvDfOCfFD+E4nsiOJ6MLQxQBtDyqk8lJfWaG2VzNibxBfeAxxj89nR
+zBmQmpwKhHqYXIHGEOvQ3TYtkgcIFw3Cca1G+hoKyStR1PtFBj7GQjVHfkjTu51UPSNd4iVU5/ZL
+nCU/xCL2MN4vIQLaOL3wxiGRcTu5O6tqftVLbgoQp+NU3TpJ82Ll0AEOYzgBONAgLYSezRsfOGZp
+wvsLs5q+YVKGxabKQ/yTY5lmV6IcW437lI43gyy42gp55gnpnc9E5vXRFnOGGtLNKpxr4EvR06SN
+EWwEjfjHPXkez2WKZ34uts1g7IrFfBFEYmzsIqFXg0w6MpcZqS9OBEMcms76krEn9GzCGfcAL2/a
+TK7cLhYgPM0fxFNdZTgPDqNi/yibGDy2AWxYzdg6Qp0k1cULZ9lHnHyD3v8A0f5xsu1NJhkBug26
+rXXp4zTINjIRMG4fO7Q70bF6Qyu+2AiSJD2FeoIuvwgWTVWNbWFNzqGG/HFq43XIfdwAZ1M/HDRT
+u+v19DyTxlPeeHT54KnsYQuLMj7p6o4gV6lwkgszW746ifaYI9bDegOV6UqKzPvJnIo00COtvsGC
+qv3I6JQUh4y6CC+NZm7VWXvIcRXyjobVcEIbvXwBxDmk+6mrY7HNCVEBCT3p6RmlS+wTNE/G5ou2
+xP3FbJNUWuW1tAeCZ64KQaPq91OuxJtJbQeHBm2H7OVAmpx4oiJmyFtlJpAJ1iY7VqI1tdohMiQq
+rblw5QSrqpfbeeyswTuyOBlpSMO1kgSJt1SN7Dk5mzEY6EFsNLpzCOuGgkqOIgDpVUXPkKJ1rtau
+IBSlwwqqqJVXLSLSPKfJU2AAEVtVYHKoBK3GPNPq1sabVMx5kXop0V8OTkdQQ1Th0upxnEJYl1gZ
+b+baHqZNjzkn5cHV+FLGCh1Qi3icDKZCGm8gc/Bv9dTINKQIM7NKNLIIAVBqmVvKOMSjExnARral
+baOBLKMJ2hR8DV1v3CRe2YhiduI6MMIUKquuo+z8mWVpw3Pu92WSMPelaL1qotXmFj+RNg7h+U/L
+j4y2eW1PqMxBY1Qht9R6rVIDTRJdFxBMhjbO8azKzreyBMiRIuVpVs2yB3fQDDBqRZiy+v6BnOlz
+Rc7vQ5FdVCPMgqgxXMCm50LtEDYtgFFp7HFmN6dnM1zMSwLIJVRPOhHCQDf8QVa+2xgNg0Uq8ZWW
+4YJwPk2+ybVmrmXGCKppiLS+US+qcLyZhNH6cUYd1Om6eJ/iJL0oKWoFUozUfYYU56NTO4tF0wd2
+kqsedVj6lQimfdYA4xzPE0Vlcr3OqcCR2gi5AB9ybntDn0Hexc8QIElGo5fq8FSzZfqixEbhR6Fz
+qQiJ5G+9H/yYH7EHyvW1qFamj6nFJ3Fujxu1rvpgccT4BQX1FNharga9MT8mY31XFwp0hNA8axW8
+mvUs1ydjNMrXKXVanEvCxwZ+W5SZfOKIctlhpNMO4B+Zc8Mo3poGvgRT7ljuLFYRwSu+qgJ+KL19
+kDXYIzU/xVMSTfu2RJi4mOQ42MEz8c1K5LdOl0vkd3LpodnQbVWxRWR4oS4rtMhbe1nmzYIYYREk
+kLEm0NsF08LnNJ4JXf3WAsh2DdQMhwZ7H/0HzThrh2k8xLnck7weArSKzcSzzCTfUfVLsNfBy7mG
+l51c9IOuPvdxkdxF1gA5ScFdR1z5bOtXLJ/GTuTqhLqD70HBPjRuBt7rBx22k3AtRW62St7T517s
+Qds1tHe+wsohslSGB1XwKS8dOJ5uleBiZH1IRN0dsoRCujtGBfYVm5SVawUB0J02pfnXZmhwgldN
+/iBD4EjAVE027FpJu2TlADFNSlH9nXcoG08wwHX7vpT7O0KRxpehq2dibopsLB91ZlxeWSW6FMqi
+XFDFLXqf6JeQXrFT+CuCuYWItnyXHGDM9mKC3FdrKQCsIp3iEElsuDJVdb3K7NKNLhRkFEWkQDBF
+QNxtgJtq2AuYrHLOUGoIuDQld+8OJ8mLiVX6QphT2N9KdVOqGrBA8mA2gwB6Ei84gTZzB47dVZOo
+VFd5rKz7diLi65CJF5duD2uOdX1fa7jLPCjx8tUErewJ8nm2ZbFT/R7lUuMZY5/fdoWuWH6rzd01
+vJv8sRswfWGfbKJ6V/eIKeImnXtAW7bygHciZwKLMkIOiKvbWGHenHUlAbnQ6Kr0kqiZ+gkcW0a7
+qJy7hN85zN0Wlpl8OeDtP7AbknOIh5OBJS0eVZpVi9q4FkLIp9Qiq2ePvDcEkjaoomHnITl404je
+YcJsU5UYR3qf0ctoy2yY0PZ2xLRmJZ6/zDKUEwKlVib6wLQMnD+m54fNDh+86ltSpi10Oaw8vszU
+5dloxdeFM6E3kGmeDdkOZxT3bAEfvtfSrvZlmSVbJy3LB4JyMOXlQhNsp2QbZ4U1PrVyAeAfwbzM
+d4WxjA3OhgWMZNmFnp2u5UztUcamLUBMMm6lAZzcVufkwTfzSjQrZW2Vs0vduLXLlq1M2bziBTGO
+jRsdYkp2Qj3DRvaEREFnlffaqLh4JSbaMwqvsZ2gCNbCQdYVFe5A9oLbsa3H2VgTA0+jrOokoEjj
+UiDFx3A0LJ4zxcXkSapejtSqc2iKKWD0LwJxXnLXpMCuL4vF6errxE7ieWuWwI8mDZWNq3FS5bQ/
+qsiusfZABsdvVQBuQaE836YGfRskd3n5kgiccbWdbIoaPFhe9tZ9H+UWYAoL2tSFZGvrIUGDP7Bz
+1JKgS04a9T1iwb7a1jkhnGTqcTNAvC3I2kIhl9taYDwkcNMZX+Z+uDMS09oz94KWdBbzgsAAx3iK
+015XDwh0+3tdj6ugHcruESeyWYOT0QD2oGUMzwVrzYMKQ/MM/XNjYaILz7BjLAQ/L1UpnZD2looN
+DKMw8hY6VeGKe7b701jJAaoLZyY1jDW6UYNk1pC3cK5IjDvkzHBthINn9gvejGkJOjGDZESrVO/K
+wjKYq8piAPPsqBV90QZjb2WMLdoukwAoV0+KUtqSFafdSniJAo0evJuwmZfO1tC9TdHW5CxMKli7
+U6XgFuzSyc49q+zM5gm3Rwk1qBKtn2hGO3qIA7R6o0pT27A5W8rzwpEseL251qJAT+V57+AboxmK
+YSWlvwruyQMSrbPaqkjLN2LRRscPDa0aziprqfBTtkQZ11ExblpNlDTJSPHzyHLG7rluypUgK1W2
+SmQkVzt7ymMbF2cjw0eQ0gWOQ4gL2tWIZiCfARg8SQFo1sE/2orIV0/kVWKpRKqTQ9KBq0C4Lb5Q
+3Lb3fOFF/KMc4sg4jVqp5L0NzRI8F71Umr4mkvwtqaLFlU7r/6q11GFVDk6PgIHvW961yySOFMId
+Qo6co15qnHbUMQnGKt2HMXvqgxL2DvwzTeoOhPbh4CYLtT6LpaF5MEZBOIMMyOq8q7hNHXO9Z04W
+okWrpWXqFLtc6qE/KdODXRffRB8NqKgG6YHjtva9F1Mdn5d8T+KSrx1Wu4WAk8NvvhNLdGhHhE5N
+iQwNr9nFUpfYKOubbNYwN1bWiS13lC/Tmg0n8RB+osqwIok+U0BmbelIw6HsandUUH2j80fAl/VX
+BSVCfyE1E4L2bHh93ZoEjcu4O/PossKn5oqKQ5REDi37valJL2cnP9h5eKLWOF88u5vYPEYmnp+8
+KTCt69+RQTj2OS/oMAdt4uDu1DWZsz6KDpSxNXwwN1NBJnmwYsr+knVB8YweBsE+THtL2uvJhHXW
+krvauBGRUtwg219qvxd4fDko1W25Jz4VM8/8ynnUX5mPLAvwH1MNrutsGVAhY/SKlwlCZHMLtA1w
+ZPIKkUQ7z655lE31wXbEelAnVexp5F+DckwKLboCgbPyKMPCDqxXSmVtrpEvg61ku8YZ2DW+wiyx
+vEawtiAv4sB8BV7qr/DLuCNAI5binZM7xOSmIr3jYUHKHF6pmYTFotSPV5imgrw49SEVKve1qBge
+CH284jfjRF/8ToBc6WPE/VmoJLf5K6cTewwTIm8B83ZrE4rwk+nJHEGyANGiwD6jtEMJFC82lkyY
+/5uIg9jkVfmKCwUAqj8jqZGwBbxSReVXwijJmcl+HM1mn5IDFUjLCiTNE4Lbf5Yu/1tMfFNMRHD0
+sYjt9JGEbvGv//tOvvbnn/qrnqgA5dBsWdYMnf97LRr+WU9EwQ91xdZlTVaAZpirRu3f9URE+sjp
+HWqNCtwrTX1bT5T/UA0kC0SS8QNNw1Z/R8F/1PLSqEnqK8Rq/XuAYh2Xv9Wk45cjJnWbRGoWj2CR
++OsaM4nGuwr1izodgEKktoCaa2UZ2Udvqq8XP/sIbyUfx82TdXxjrbpbBEIiC31tQL8p82sq7Lmx
+k4EKme0FNc/0RuEw7A96QygQIifjOtVyMXKiGRFwq2EYWq7UtvUtxM6i+r3+388fQ9UEzbSjcG+P
+6vFqxnkFmRupajVblGzou6fRnCWfBgFyoTlMT1v7DgSJOPn4Lqx9uDc9lp/jwt0xaGyuqOGjhqCc
+O+A6K7KS8X1npddRWlwCZ1Di9pPbfdSUex0IuwZvlaapBhXk982OvCgSmFJF6UZtH97CptY4RSgO
+UQGx3lvBx1f1q8FW9eVas0OLAWntXWelwzAipI5MF1LG5JNKKfuzsbAkfzDL8ZMu1VFzbL0u+n0M
+YwB7A3+z3uA3b5ES6gYSPK7LSqzwJemU+dburCFIiyzbJQnwk9++NJNCvm7xIaq2Ih81ijNdYp2Y
+mcFN4tp9SVBIpUrSE3Jj67//yOyVA8VUgZAGov77S4tNMF9tlyBkmXUMNvrUw3Ql+ULbs2Npf1Oz
+s95IhKxcGOA8mW7F0YXhhTNJ2wT7SUBG4oXlKsGX6mkkWsJu1ZcOA50c1EhvftrC/lEbcdTUeB0X
+zxJDApcygem9v0oM10qmait6cyxaUnghB5ypswxesojF7Vjq5Rd7ENL5bz9GZMPo8Sz2/vzD0ecw
+WAOaNyr+Lq8ploqCrxzUN+o7i73Tx0P94g2l/aIbaEqY8OE0vb9AdtS9haeICmRLDCwAZTWYzcHe
+9Q3Bs2MRST+TP//xhv7i42PhQNvFXIbZ63i8erQi3JgktZStbu5VieN+Hhn4qWz6FR9f2i9mL5sD
+FFEPFmYwbLjvL003MVJEc8hmGUbCmd7QCiHBTWz/F6NAlTKgMpumc9wPlmnoIPxlNqkT8hHJg7YP
+Anz66cej/PK20cJfAVYswa+JEW8mkpYWUgMwmFEyiNoemq9s3ulkR3LkJ+C9/mSK/NVbgXxcRy6P
+y0dnKX83b8nyYjYUzNYXsLseuuUyL2uY3XjmADEhXf344n41GgQw24Edpqv6alJ8O0uS5ZuYWsXH
+3cx1dFLEjbZtOfHv5WmqDvCb+0+u7hcvBjMyXzMtVcY0jkQ7qaWS8CXhYx2HqgJLK2R18KNSCT9T
+3/3iqTGEhg4fyb+O3PL9hU2Vrogu5jueBiTIPv2B3rfS0qb6E4fN9W/fRW6irqjm6i7AZPl+sHBS
+pqKLyGU2OXUAfCCS+blodMI8Qwl5q5sNuvj92ZEVm3cewSo7RX2dPd+8lUtp57i7IFQkQxx6qcQ5
+bA2iwveDaSekEjRNyuh/fJm/uqcK28J1k0lfe/WXvh1TdAmUTAkjE2nUJyqFxk2WE2ia6upnSo9f
+bEFZvv8z0lFD26yAPVNtpoVEP4hKPJXtO+Zr7Dq0spTG7UDJXYGSLJRNMg7GZy/PL5Yex2Lyste9
+CmvM0c2FA2lnolWIkpqWLlhmQ7pYsNP7tdHWm9VMgEkzDu8/vru/HNRcpxk+D5wjR4M2uTMqsQ1t
+oh25qbGTpbf5bN4Ks2igrNTadiTJ4pMx1/t4tMtcFwJm0PXA8Xeli73gP9NgaeZFTV+KCDynmrJ7
+LLHJM6EA+Tcjl0lwleRmD4Ep/2Ty+ftT5i1aab5UVDm6HE8Gsk7YlpaRHdtbk3IJbmV2M9FE8Kjq
+/nSxpXDTgpg/lar2k5Xw77PQ+vry5RishVipj7YWcLkg1U7wn+FFaefroX6TaIn6iZz873OrRiwR
+/iRoxRr/uP6KN5/oYBV9HKvQd9lgi28RHB7hY+EoC/DSU/mt643oE0XY328owzgqs4HJmmgcT3qC
+Po+Qqbe6eUetAYNRYVw4JHDhQ0n1eAvy2gApTDCMS0JLUn8yPfxq9NddvbKK55FOHV2vRGUJSSZk
+mKrCVmJJFYQCiGxi9KDoxoobF+Ey+tUkU+Yda0n5/vEH9PfpSWNNkddVk4WMw+P78U0i/tg2M2mo
+Ex5H/veYggkPVLgTn2w8fjES9i6SrIx1QA7y70fiLKE6S8aqWdBALMixt7FUADWCTwl1n4SAjy/s
+718pfn+OFewTUedjT3g/XJtIaTJ1NNRNskBeWFAAB+HPVtJQ2XRdUQZRPtcP5CFUawVav/t49PW2
+vZ8jGN00wHiym4MFe7S4db1JRHHL6AKPzkGpTNklQ1r97U9yHYX9KRth2UGj//4a+ULsmFTz/8/e
+mS1JjWRb+1X6BVSm2aXbUAw5kRMJJNzIgALNs9xd0tOfT1l9/p8MojOMvj7WZn1RVaCQ5PJh77W+
+xY5RGyFYS/cWSrZx+V/cSmCvX73wSfg6upXBdX0kDFzE1wsAJVnHMGdMU6VnJrYTX37AyEBASI4Z
+m+2jXRW0Vq/StSRVyES3EHZ+fggtzHl9KIjsoqL9x1tUJ1gNMgEvCPqIOBr5A2XABsJXjYCEjnSp
+gvLWSxS292Ry799+hKfGYuB7JplfLhv74+1plWcm5y+UF0Lo4dLMO5RMlltt7VmXl3CpzKvOGb0H
+r8+BF4j0nOr7xBzDto5HiqMDZHNwNMd4ZaHoIrAZjycYrJsONso9QEPoz+Yk+ifbNjzgPW7WPbkZ
+yJUzN7/+7UefAnq9tdLmOKTUHc9wOAuRW1GO2VhU/j/zMjLih20+xkgi2hlQRRXFI6kX3n8x4XDh
+EMIkPlWKg0cDd1zzZxLFoWC2aNwa/MJLFUBJsoQs3r/9gpEvHt0lxUmQwYJ9z1qD85zjTxGmOt+f
+JFJzWPCZdjSGSYS3QooZ2Wx39iEVTo2Az8YGvs+CMRn3QVGS+zk4IcI+by6sz2IMmjpCRtAs+8zu
+gh/13M51RKTeRPsf7dZlmaynGTJJCCFSJgnIvgUmC9aFJ/rNLLMyjoSpke0sE2FGdixp5Bg9nZBd
+xZYm3wwq9X4CJM0ppFttJXDry+4dqBEhtpjFSKUBH1r8jSgJkC9dzwkYZaehQiDJ4q+leTB97fys
+JJSmHogMDgdz7a9NxIVUwwAL3pK2A5JAuQby2yTQN2k1ZeLaEmbSbXqb3NpVTbUcep886Kgk2s2F
+dWLayQ59SftI8h6UcTX3yfuZXjZCSG7z2zi6Tsj0U1YZKFxyv7dz6HdXBu0ZCYTBKr+4SQ7/o2Bb
+QVQtcNIrs5xRf7jhWN8sfo0EKS/6aQeFFu+UwRLg4WAEpZY6RQYCsh+9kGohvPpUIvfZTp0hEZEl
+TVduB1eOV+bokbEqOCLA7iAg6WHkEDZC1JAdmd1BWdvEGU60MYRdNN9M0H0Qla2xavcssPEYYQuF
+sIQ11jU3dlVPD6VQwts5MiSzy0L00G511rRNpOl0Pso5FBzwQjk+pGVsmJGNPOM6a9n6s7d3mEe6
+ypK3XenY7Zb8cQLPNO2ip4o+OuCAvIWZgdzluW/E+MlFtoasUa4ha0G8KiSdNLa+5yrV3lYp+tC7
+wJvwaCLaGPUO1m4/7XO/QaRV0OS8V76FGijrU6xYxIXDiacHxOYIyy85P6nASkqoSD3NcNVm0mcW
+b23515SfIEd0vZdEub0Yn9OGkCLEDrWF+JPwEmL5xsSH5FmhUSSvt13kjj0rTJWGDLNPAfjEfKtI
+QDK2ATGQEllli2TWLbvgoercdCDg1Oi+xC1F902aDMttAbeQRwUhSm5sLTwYZ2EcPlXhgN/WUZ6L
+LGqho4vS1+iugxmd6DZdiIpCdqq7DulaRuLp0M/DE9xohQPdn+R3ZG0daF1SXL8slUifGA08BgQH
+qCRyc3oGu4NsKAmG0F4Zmq59WRDpjPAhVba1Ra7UD181/Bv9E7Og00ae72m6fX1jVrtYOLrdxiSv
+lwdVD5b5XLnx/HVo+zohmL5NW7i3iVE8tmDWikPtLcPKWR447sAFLrARWHHTH7RAOPnRQvhqbEkQ
+isurriI98kJ5beZcK7I5iY1Z5t4FUokr+DkxdXaf1gKVLnICdKmw6ojdkr0ZfNL4/K2dqyoDEYpv
+lsiVqbaZG7IDxJ0jZs+/G/PaeuraFBUJjOomvYg96IXbXk52/y5AGFU+J3jUi52dk6JxP9ZEt2+l
+jru/x2msnK2ZLyWnFyOQzo+OUQTLpvTi+cuIPICULZnOaz43et1NjrSZ0EbXGr7O/HN9F89UdO7i
+tqT1SpaEM8LK8OKlJcbA86v8vfQRdKMj0m55mTMDkj/IPAUxqS6zd9O4TNjvK3ac77Tnl+Mhm1xX
+R7nszE/GrFS8Cakb0z5ngHcwOJd4PNCQpb9e1iMCMaPojLvRI59jh3FYZXR6gcXcggBE8CpzIsCi
+xQQCve2XGTwN3moRwyRqrPuubTs0SIPShxyYwxg5wkhvVNU46d5BF2lcl2nVZZ9BxeTpbQhSbOEP
+kl20s3otHNjGBZ1TPYaWvpMxLL6vUGYdZxeYmY/HtXLrJhqmXBo3Yz77P2NoZ4iKs6GVe7OARbun
+YzWJhxpg3XDtj0WJ6N3n3e9laOufLqLg/qKu4DNvydYcB15ILPLLxLTy7+ai2gwFsomsy2JiC6Iy
+rGlPk8+nTeQrRitQ08UrqL5tZ4N07il8tJ0EBoCtFge0bk+vBvizOaVbr1VmRqjw2JHPQqgoVMkq
+rGjT0/sATr2U1WcBOoG5Ie8ku5Ox6cvDNNtq3I707RF+U+WD4sgtRfHgmd/EuPqUMiLKL/t4IXnU
+iy0DvXqY/5gHMX/yE52882M7vQtNWe3tMizurJJMjku/kp2O6sHhHYlytpf90GR4+StA0+OtqNCU
+XNbunNuo+OrJo4Axz+Z+snWrIlCSkvAPr8bq29o+UgIL6mq5XWZm56gnHry57OximYF5lSHBYF7l
+zbvSAa5wW5mqQqtBQi41CziqYue743KlB1UUF2IatYEoDYfjZoiNpKRrnaG2HcuKd9MbhRMTO2jg
++u/LKSuJ92ic4CADvy15/0HKDykIbr5URKyUCNrXr6FhMdIR3yuqe5r+bXdJacN9r9NsJMMt8zWj
+0V0WGvOh2dmbweNiEaFawkZMmGGEAidSXg9zHXtbNPQSpgYQadxSdA9vUb6xz2jNDnVa4XccEixA
+8j/i3LDe+aItBYdqfh0aGgRXFt9Ff5OOU3k3DElir1nybUGQdccypiazbHesw85MNmtMvAmi1/ZT
+k5v2QxXMbDNSzAWP2kGSBJbfw0TvOBnE9SxJHBlJVzo/6X0IfF1IgjNABG0CYjtwyhQs8lATIe5P
+ZpQDgDABZ3XTg6uGstgr4K7FhqS4TESG4tjPx66mG9wBpkUlSyc/U1ekX4kxZslx+bCgL1QlbY0y
+Cfp6x9Tl5XuXqR1RE+1NeWANzh8W6OmwwkffvxNe6+fbVq20g8prwy8FnydNEmTIH4lf7zFZJGoA
+9T12+h5YspFsUiQkNwnjCuBOmyEZq4LYu9eoJm+ARRfPWmrxDY2Tl2ydTKafGb0IZTMvqK8mlGSs
+lZ7sCtDFdrmOIGOuogA1uEPCQdfcaqsPb/0pQYHPMb380reV5nmN/fAdRaLZ7WRgi91iK7+OJkH0
+AFGI/Bhi4Er1k/zP/kPdyhp1e++SVeDEA5ChcqxWYIhywdAayXeA+EgddctHg0IyHqwo70wFBMhP
+Pxke+BG0mjHkzT4Ztb+t2ETMN47lZJeyyga1bedUaxCdGWiuUEEY3rWl3z0NS+CoixaFK0j8gfl+
+I1sO2bfTIlJ2XogZSWmT1CjRNRakvHtVUndsw9KOzVjdorYzlhxYlI1AF1YlEIy8XlEQKi6iYeCh
+b1CcMZYcpaqDDbrU2cVtSjyFpoXfRnR2Oa0YAxK/Hbp8tp6LuyDiorZbPi79grbcMJW97BSoHOeC
+dlH/POBLCbd1jNBlaxg2qvUAwfECdKI3Q1LW2DCwZqj8q9Gna2oF3LFxtwTEUVBXlPy1TYiGRzS5
+Ea4ZAfMSudbi/kw0usudrgAe39oOVhf24JlpgSFIiViuLZco3kSl6CaNeUrNrbHU/O2qdhD6MEFM
+2UGw9H1ANB+SGNyz6cCFkzbOhTX3uYtXYmSX0xCBx/41VlMIegZYNNCBPv6YuoHRQetyqw/NrEq2
+nsJZjOuqTn1vi6Wqe4wHkS54WsBNRG69yqpYK5JlPw523W4nEEA3ZE+5LXCwtEVl5/fCjAKXqJ5N
+Zy3jyiUJuuAqCLPgB/s7vjgV2+zHR5P4PoMizrjpYaPdk7TYlhsAe9l7PBJ+t6HxO/wsKhW6GyMT
+KILycSDauh/mIEUonC4/8zkPr+oJauIuaCbnsRjU8m6Rpf44t147M3sZ1UWwVEkf1SP+rcivwhwN
+UEzSH3Qi375UVhJeT8SRjhsfDdNP2DFE1y5gwafII3EFPwhhP3nEqskBAV0R8cRGSO2Rfb8HWShh
+C/q3B6pZMeUVpHB2Ip7TaHSnvI9YzhBa1aJEZmpgX4OvEAz8kwZ3I7T6bJXKK43hqag75LuUURli
+Mb98RyJU6oPImbBLtB4g5WYNG4gKbc460towGQpL7nwO+rbBrsWkx99tICTf2NaSrIpZiTa4nyS6
+S52jphWJx4CGiow2ODdW/Vct5fTNHHounIRgN/Z9njEsC4MVh42kq5/0AqH33gkSr7powtREaj3O
+KGB9iQy1rjHSbQWo4JEZL/UFp4NB/+hXYZ8uQ34glUBOKooqK2Ys+0WUTEj7XY4g+4M51ZxcGsJg
+ODKIMMfICqKF3Kty4n6cBAAw5MKupJDQ6R+5uT7HxpvScTckJoI3DQLbjXK356DDvip9QEO8WOz2
+CUXZ1JnSP8zE5W8ygtKaL5tKm8llnYdcwVlGnGSsduFNX+lK3OCg4XbY54Y3YKn440OscZVlpeeL
+HVvr9Tsctaf2TrUE+zluWrj9rWX99Ptq+PZ23eGosuOimiCfD68mhC5Mt+FRTd4jom1sHVHxtYHn
+W8Hrubwwk7jl0ceQgZEqcSBzoQBPZdtv3r74S234l8rOP1dfS7kuIUW4No/qSr4bx12P9HlDbrbB
+bDgnWw5DNvvi4GPXAizpJLabfmySXckT2dZ5MB9qKFM7WydQWWav/2Q4jKEzv2utFL71u9an9ksP
+oTY736OaXlPMIL1411sxlsgqrKcdcKyfGRJ9l/FtZOamF1TYrRFnXIFgd9NXivMYsPLnt3/RUen7
+nwe1cnJwmq4KtaMfRFSHxcYpp/RdcUiGvaextLEa0AYcGr85U/k+KkW9XI2SJgOCOirgmPXx/HL7
+rXZrXVgQwOfcC765GXgxAj8rjchy8qZvcdHYZ0q3p4ahQOtCcc9fhWhHpdQ6joemGAI2mF1t3/vg
+mDcytoJdMmIBmJUZHto6lQDu/TPCk98vTEHRwb7LCOT6x6q32Te8UrSwf2RNKhXl1PndjKboekKe
+vu+nboT33XWPBCom+7df6VFJl4f8+spHrzQgXto1a5qAvZqbdNuAjw9vmQimO0D5ACZ1vLDYdpaX
+tR8qt7fVpUoHtMZv/4qjNsM/vwKFIyRiMjwxU79+1WTcNGy4+QJL1tA1NsK+W+X3l29f5fcBxb0C
+QWYw+YjCzKPXy6UzJ+z4nhxtjVeexSoeVNZV0Gn9Xji2ODOafn+0NDcZRqh9BT1z56huywTshZ3D
+TS382y+GXDPFik4eRKFJJTNA2mCgZM3yRgnYU/5pYuD6ZgVzGtAj22diPbrbwKVqVBl8Pv3I8XWc
+CHGXDhMVrsmLP3+u7KWJCV6VYig8Xr+9Niz6fspo5cZouC/LPLFAmKwu20AYnJ/7Qojb/+KK4BVN
+SFKru/7o0VqQFDtOuPWmTQ39PZ4NA+x/jrbcw3N538dzcEZxcWqAoiShqbOKd/3j5pFGIINfIGEq
+7iXLeri0A65CMaj6zPd48kKo7aBRui5v7ai7SKIrmYuKZ7ngjmHzNrJhnqbuzFVOfQl0ay1EhIjC
+rGNIjxbBuBQpVxkladAACMPlAkM8WeVj19wPuB3PNE9+XzkAiyHEQU7I9oEO8esh4jcUUOdgHSKW
+Ch90vXQOyZ6JMHayrOBVvT08jlo1L9MJ4X6rBcAVLnPq66s1oSwlQiqGPhTYrxmGKEpkBceihXSi
+oWZ/xB5NfXz7oifmcFYrC7AZE7hDg/j1RZc4WByvaepNkKXpnlccA2qe4w1BtHvCcgKsM457cJ0Z
+PuHbVz7xNvHD0KtBysHcdsxcpzLapEHHlz7EMvhsWwVoy05a6qJfqJwlBLnv3r7giUG6zmgo1Wg7
+8krXH/TLyjzocPTclOpn5RgoRDRAdWk45v7tq5x4i8IGIOXTdw6QXx9tCsM5TlbbxirUKKyJ7TL5
+RwcHtiee8HGOvxcWZu9Nask8PHN/J6/MOuRarEd0co82hHGQz5R4kYg0hTKfB4Cc+ASLOLubEQZ9
+Y2XB74hfW8VnJtITXwmXM9nx0Orjjo8W454OhRgl162Kdroaahxj/mQYDySeyzMT2olbRGTlIOdi
+MoP5d7Q6dKVpL5oArU1Di4zIMMM5TB7Q6E2WO/ZD22T9c2GF57Q3J27wpTOOmhIduL2mgf86cIir
+l2Go+EYy3t3W7DGXk8oVH7BYLmc+ihNjNCSDO0RjhAjQOVYu5P1Y9XLhBmOy91ZY/bTVHVF6b4/R
+36+y6k1MuqYYzZGFHI0UU1GYyzpUcXBR5V2hi3on0lyd2R6euAqbI4v/MXkiIDiaPSX0B8rJYb1x
+RZ9tWqv2YLWm58BVJ67C2YfOOis4rhXv6OVQGVQThxyQqzOdlLs+B7aybXoDgsMfPzTmZYtePjpX
+RsLRh+0olzgpDwXNok0MTavZrEmnL29f5PdJkRR2VptgjbdlRTi6G9w0gGhpd1Ec9Ior5s5s3tFJ
+4O4A4ti7Asrn/PntS554gAi9KMwhv2LSeEGg/TItZrWPBqlkL+04nJX7NGj37TxN27evcuLGSIFm
+50PUm+u7x1fRaPITjv/oS0LC6poyFTdI6QZyyyhxtlNyTpp4+nocS/wXI8DxuqZsUwoCOWqyEA16
+oUbZJwLtE07AXW7mzYOceuf727d48kGuom4WGRQPv5UDKgJBnVWZOKd1tsWAk2zLZlzOzPInrhLg
+SyT8BI16gN7z9WRE6ZWy9cT6Ikszvg8moqiGvJjPeHnWcfb6EI8gw2MlwUcUcvw4miFiPx0TXDZQ
+7xD679NyGiInV/o9/ibINjoQ+DqTqdti1KwObz/GE2+O3RZScojnnCmPZVUqM7OuQ65FAKSbPK9y
+j+dFhu6wLxvKeUSAQvzfv33J35cVxDm8MI4DGEbwuL1+pqm28WT7U7WJnXo5eNK2vpQGAJIbw6Zk
+cB83yrGoyK5W2rcvfOpl+u4aMc1kjyXg6HPHBcT+tRkRXaQjJmnPJQ2jbfUfb2O5PUx4eLMAf7HQ
+v769pp2EDANJOb8M6gP9SjQRSAEFn0JZVt6ZAXpq6KxLM9IunigC89dXkyxqBMogBYG3nh1y3127
+OpnhAm8QOcEEyfzOo1F2oIEyP/354xQ8RrRWAcPHWxfyX6YykamO3rdHvDyIi3vSenAez5Z/ZvU8
+NUAFmHnukI+QdfT1VWjGtRj+eFWVv+J9asP44kzIVOfC7S4mwz8HwPx9+8G8zEFeUE9ajU1Hg2RZ
+BmBeEmWOV6Xeoz27qJoCP18rSmlmDmeG5DG4lkWHy1FpWLcg/P+xXC6b5iLOUwca7xIrvekR70iS
+DcOpvPCI+qx3siClz1ROT65p3bSEGSHY3YAUKNSZ33LiSa/yMY5EPGiW96P3udiJ47cLIsEZLTuR
+sodWzfvcJq1DJFW1fXvwHIvI1hsPETdiTnhZMo5FZJUuCGaxKYLnVpwAcKuqOKeTBHWHhAP8QQAq
+gSgAuW0J6b02qW19sjrOcptC2TBfqBh49XerXayJxFXDSxGLMGNd4+dH5BJzvDrzoR27Tl9+sIsz
+nL2+idTu2Ew0VWGa+Cb4hpAvutplajTf6al0DkjF64s4SFY5VjccUrgCmC2MDtBBMgvryeHnyjNf
+xelfgw0t9B2fdeN43OT+WCqTBijZqwvqLxQp2YtbxvUiEgDHO0avcWlqRaeo7OjJliTaGopcZeLV
+zT+T5v7zZH75Lc7rTzRFqp2jAV4ZbWCfsE+WsMjtcwfKU8OT8YIJlWoVk86RM6iZgQcKl6skY5dG
+bh8OP4DGFO/UYCZXauD09/YIPbFasE3z+SRZlFHLr//+l+nN9RezwayDkNWDjNEbxCyLudJnnt2J
+6YarrI5XTlq8yqOPbkJjWU6SIwgyku5znJPz1HV28hWH87ldxskb4ji30usB5R8jhFUOzYPmORWP
+VhTbuKdh1EPLObOXOXkV8IrMZlRVfhfgJiJubfxpqJuSLNjX0+TKLYc4cEtvv59TTy5gieUd4XOi
+rPH6/fScGwI8nlwI9OEeb0G+FY0SDy1stvf/zaU8irTrnh03yutLVcM0oMnhJbXT2N6RIIm+pAh6
+teq3df7hv7gYxi2Ke+zeyel7fTG3wsXjw4aBztKmeylHHEUoYLYgHKr925c69a7Y/bG24lpk83A0
++FYCkj8gEuMw4lUPhZkRPBuoc+j5Ux8uxACxFp5YYI53t3WpfFqWjLsaBa25kYSEIhnK9MeU2te+
+lXGxffu2To0MyohY0FyQq/h4Xj9BZ4SQSOIaG5OGsM18qcwPfY6egSNDeuZl/X5vFGIwC4jVghzy
+Hb++lHatsASjWW2gAfeHNO4emqC/Qn7nX5h9ps7c2ImrBYj3MQuF7FDwehxdTTok0uU9exNt+Fer
+YPQJJROcP0su93GXxme2sr+PD5/ZL/TWzQlnffvoehmuMtcyGiQloks+t9aCPMex9ePbr+vkVbCP
+8BlzjvsNbW4Yyp+g2WBfbZPiK4CS/hZASnFmxTzx7NYNlreOQsHqffSmaAQsSRsg5qrVrO4tKxYE
+LNV5d0VAtP/J7uLy5x/fFkMQuwqu2ZcG2uuX5fhljxqV0wYmfM4Blf13Rr76Hx/fOGpAqlondBqu
+x2US25AxFCnFyZFgb2yXMSC/GpVO1OPlHjcm7+zMc/z9bTGvo7EPOa6ybz1eFjuYUd6s6PfNZSdv
+xJLH70ypHf3Hs7sgiFRgERfM7hy9Xz+9oDIsFYTkC6XOSDpVUf1YWuC70H7+zbj+j673327IR24l
++Jw4fdvr6fv1lRLkvoY0u3ZjdXP2uWqMdleM6bnK/+8bfS7DsZf9BCmqeH+OLiOAWnSBAD8C/NIh
+RrsOcudaz7pw3inZliv3KzSKndl57XTIUcWF93Hsokysre5sN+7UPa9TCAd/ZhM6f6/vmbgnNwPk
+1W7mvlQNoD4nvXEzr/rTvQBLC65RBiYTpI+T8vVlzJlWprtWCxuhg23o6B+1YyYXL9/Z/2GFfsUK
+scHnHf1nRvlj1vzrAFno7x//+rv5123Tjz9+BZbDAln//L8BQ47zF10ZpBnEDPApc3r4f8ByJ/iL
+ed4kAe/f/4Zd9v8ChvhTHAwDcA281fWgyN/4vwF5/l8hhUaGNh1zqs9wBf8EMLR+C6/qYdTKOX8j
+v8f1Sy376OPvs3roCfH8glAzArD3QEhqZYp9g7ga2gP7V/DRncrPTDm/1aXWq/KcaAhgrmYD8Xq0
+GtLrIAb6XyYJYzW4qdTObuKI+N7tsjz/8nLu/7mVXxFGtKiObhFbKN1Oyn48aJ7asT2fU6pXAFzg
+iNig9Io6cw3RFbWVQ+sMgRuD+fIOqMmrbmfKlADfgUZWFhFDC1O5K5I0vAt7Wj6RPw7Zw1jYxgf8
+NFCJlwRXyCYfpvhTy/7HiozaS9EAKackNmRCEB/5BNbn26mHlXrgLA3qWRBvN+48g507+7M5/jSK
+GN1O0WfhZV6O0tlYia4gFzdKXga16T87DaQe2HV9l14Eid38bJoElpzuex18XCUpXWS3+PRoR2TD
+g+8kPTZYtJr5JnbxVLiNabW0yLvJ2HhWAsvbNUFzbFURlmiHA/L1EJRIUsb70nc/1/EwI17qPHM3
+oZTdBm4V+FsDguytYdfA0u2AVR2HbYLRxSd5FMZwZUGdc41A6A2y6y65xvYgrA04XBc7nuHO3hWT
+r3dtApwjn3AIcKyEKrFvMwov2abJnVtTtgDXrWp5dNvkeUiMtGONha6Iurl2SEf1QQOT/Gf4CLmZ
+14MNGucYaF6ME4Rs9cEpt/G0zHTPR8ubduw6kn6LxHvd95pTPxyAV2VmZEnleFFjWXIEtlIZB1MZ
+jXFH+1T8PWW6SA61OY9yL2tKKmgRgzK5dlx8JpdOJxo4nySrPTcyyH8A8JuQgnt560PXJ6GU11+F
+DQe9WqQbZEvqXRgOfbMtpRFejq2X9VvwnqjpbWrpxd2IjB51oTeYEgRjXZF7lda5yaNf8uYAGLLt
+tqLz6jUJOSdReVncjAPKNCEUeOgUmnlCEVX6XdchNaR8NNt4DxClAAiPiJlHOIfFBQJMiCUhQ+xz
+p1z+Rjvz2aiH8whENkFGuZkQatw2yZw/1WWrw0PmaBvyQLDwzFVg6iglHPlnNa/C7sCea/9qkAlR
+fewgJ7mTInYuXWiiFup3c0gPxGaOTynYUW8vOiVxYtRoJnhqqMWS2cZK4hO9C0Bswp00JstoILdO
+h/vO0u1X9tuq39qlj4h7SYXxFVfa+MjpNvnYEFD2PfQqeTO6CXANg4GWbZeRFlIEK0F8k54kZ9OG
+MOwjmecGt1ap05HBYnvNro5VxX8ehosTWTh5cHGVFf0a0NU28c5DBeLMGnr9sIzF+FgmGNM2BQ6q
+HrlH8bFT3qowH43vQjTGuEWiNH1X2SS+D21l3xMDjMq7hfQP6tHMZzhX3foe+pLCQt556fpbFOWN
+BBCP3PSwwr1dgkiHnJZUuM4lbhW2BrnhjjABQjU9N2Sj3su8yMc95Gj7vssUIoIgk8CmYweOz9b2
+5fhD9oO6XzSNyj266PCHCBvZQcN1i/dw14NpowiY+ABlvKdB3pjG5ymnlb13QKf5Oxx2PJ4U00W5
+KUFsfIAuinu2sXLTjyaiib3Ioc8kVsZl6EXKc+afmZfFz8uYje+88aVesyzU4nTiOfdm2ehPdT5V
+n5bSxOaV4Haaok6Q2Be59hzg0JKVlR5GivbfCHFMUeunrr7uYpeKZ9YQqLcbnDzrL9GeKYrOeqAp
+khqEFFxPgdstUSZE8c956P82NL9uaNgIsyT+5w3Nu6/k/B76ZhiOSIkvf+7fGxnP/Itck7WHSwtw
+1UJRefw3KdG3/qJRTaWLwpC5bnF+2ciIv1Z937pZgWBII8j+//sYK/jLpBcWhhREfEpyrvUn+xj/
+5Zjy606GFjnSIrAMXAmUCTkur4qIzpT0pIw2QTSqYYQWnfVVgnnZtqatn9vDQ2COnffkvTBPjRf+
+qS+pSF4GJKoQ67t08iGFWWFF/Qs41SEEZUO/kpVt8F3sdyWnohkATUyWvN1XnM8TexqZQeCyVmsl
+O7IK9x1x1WPxIAHjtnS8JAS41ADMv5EU4JcvVcYW4k5ibPmbYPK62RZxqFgAVdjdui9EWzZpPVn2
+7fRULWpUlAMaeS0R8CMwJzujuc0niMcHPMkB6FcZ2z+LRSiSWh2zfrT6wqoOVhbXmo2GAfT+JVhV
+1iVK7iLJbkJNHXtXDElZB5vSos1yaWaDbWzwDUECNnBw15GtTT+/0YJ4OqwfY2UdqheUMKKpOdiX
+rurSrU1GurotW2cKt3OHDWkXV/7SRcgZq3krcQSNqIJAVUcDERkVktUX6HGAu6k70GCzUd2jXlzj
+fnvPKW7cESb7tQFs2P3eZ/kqvs840URTGFcimpx6tu9sRVpaVK8Rv1sixYfhPsFKtxzIiHHML6i+
+S++jxLlIvGyYpiGV0Hpw7wGKj/Y9pAKsjmZKFl7UDJo0Bhocw3glYpV/KMfe+irtsv4UF4K+9urL
+KDdLgwimCxL3UFQ5+GPK5c4uFRrkXhJqd0tKSvXecTSTHHnFYgm5Zfgmhbuhv5y2kexn7yug+ay7
+T2Wl70VFKbOqtHqaYgDSt2naiXnjpjXaO8PpGywrY1hld904ANsfihqktMPJFVaLDAod9bDozN2c
+DZl/q2fSqLGz+pqdSgCuiHpsucj7ZTFI99kUsmRrYmNVtbcssdj3/cp3hr0vs2oHFrn82nuUwDNS
+kUGpkSTDHs5pAmM3S3zLbWgNyBzLOGnAQuatCbLWNHdQiJsn5OxIobICUvOex4I1io9lcr+GRRfu
+Y2xOKaEPbMR/GNUyg80FSWBeyEDp1twqEjRQGLlOpnO1a2DojnAJeke0XoxDd4m7aiYgBbJwccXf
+HxCTTNrS8mnWTb+hNaUa2DW9c3DH+Vl4wxQtHHofcbbll4Qxs2AzTC+apEFYUiskYbbO+AgbtucY
++UCtQ4yH6A+5wBRAU+2uwW/hTXF+a49T+tHA0/Q5xXp04YTTtB/gcL5bzcQXREI23wlefqxV62Gi
+80kXaIL5PvRqkOPERMw7exHVl7xOQWA5ucMhHGFzet9A3vzMvakLO264IpOEs3fidpsZZnVwynKN
+AoqLK1sM+l6xm3wQbkvYcIL3Q+MlCWQxvzcqr39UGDYog2Nn2cIeYVqDGDTfUlEObgTNMjbqS/xl
+dkEeb3KiB0Y+ktn4tITs0Ta5G8hyJ7C83INiWG6MsiieQFAPn4NshtaK0r1KN3ZLN2RoscGkqjFv
+JqvzYeRbE0kLzKA4lpxWEOExhV5/m0A0eKi8Bi9o63TzjzpwG6Jc86koEHb5eNpADjTdHnBpws4r
+MyxYUqWVgO9uEpwQCCJ9EpkB3bv3vl8SONsP/ZUwC/OyGwLaaMsSDGwGGm1nO2EU85NqHHyw9CvJ
+YegIC+j3NAOci3Yc8TJrSTkuzYUxR4YRJPHVVNKvINuHrEjqdByMGBkdOM2NdCmK7zxllflNVVpo
+ndYoiX1BFKcRJUybJekWqU7BTPc/ezAvOAcxJnX7PlT93sWFWzyCYzcULUgGJ9VoPN+xx9S16UO3
+Vvuk7Tvx0ITOj8XPmPPqYGumBWR42VW3Wq+sjItUtUzvkcC91ReXmdMMcDA01VSjfM6L8O9J5Ar3
+6tD6WNILu2CdCSer3OmsmCGmG6oY9k08yjBKcpitB2W27GMNmNaXi8G+ikSn2jhks9wr0VwuMExI
+YVg8K0K00N56c9gM20bn3bzv7dj9ApkLsIGHGBghDKYtGouquTTcQV8kEjI8Yoc+YzqahDZ2jTvZ
+POU6WOOptO7uYM5cU4XX6XXpzWWwF+YM/TxY0R0X7YAlb2dhbb6F0JIPl71ZlMG7Jenb3WJopngt
+Jzv45MxrhkIz4khc4hjr7aAkHjE3ICghKRALI7sgnsHlv6KtJkgBpJT8kOdFvTU1j/jCWZ3y2bNM
+myddp+uSVyzed7yG8/Vkq8Q69ISfxFjKPzcQkvFXLgYDgySVrvq8NCv7nunc9HY4hRnuix4xlHUk
+T7zDPJevCQmz4R9M5od8z2hya1zudvq4tC6V2Rzh+yZ3/ENdFvqqLDU+0EB8SVVOCMOiv9ZL86iS
+9NFy9XJlyuEZmGOE7uE2V87fpWlO/8PemSTXjW1Zdiph2Ycb6sIsIhsAXkVSFGtJ7MAoiUJdXJQX
+mE0OIEcRE8uF9/3HFx9pZCra0XFzmTsForo495y99wrmznP92bL2HYu57w7WhSBD3AqwmWxKezhX
+SgJ1SJXN633VSGmzNLq8AMhefGnVUFR0zRDWIZGmM2xmO7Yvm9ZNVhGHY/dYwhdl7DZxJ8AU5Jhx
+v9sTqSN7jRSR73Ux6qyVRX03a25SX9jRnNkH2VV8ctdJDDrNVm86EPRkGpFE0pJy0ZpGdaPHg1TO
+6LAOyQZvh50HY55194tIBf67tK3EnS5yeY8LSfIN74UndlJp551BdWATbeLYySX7pGretbM5+ojf
++auzjjTgDmbUuFHLiSNWver8KAbZ3TcmjDJMDJr6jDfWvtFJFcqCVtRJkGbjVZTqRJktMmB3O5Iv
+MofeqItbrmpyxvKfbUZjCmPkbYKPYvqVVajaRkLzQnhBzrcmUfcOWRMk4JA7LX1MJPp13CeRDOGn
+5FhfkvsFFnG1URf2JTYm59V1mV05aaZbh2Fxi709ekNQKiRrVBJEcT09QK2haIiLpMEGEbVWdp/b
+NdwuBztbb8+q+1CPDaRxnl1M1XkLFQdXNV5HbN6DVWS0E6KFO3SWyMguEVrQy0jFZlRGvasp3sqY
+Um+qSecA6JRn2mFQWmJatBzymF1qtbtFszglj3btjp/KImvdx1rtky9aPA4uv6qaQQMWOaSLWNrT
+nUGoUO6rtZ6eK6TWAXTJ9Ol5qiL8n4oYEY/EnvLgKLy8Rj0t5DE6fBOFTz8m+qz0BpbGjhJiZ7QL
+6+3RQrpOp2HMGCsSplIWrJSuqrnTXUtHCfl/N5kEc0Q92do7bpn2veucZiY1ZSmhvlstVvymL6Rx
+wGI+3pR1mdbbJGkbNahoxCyBTcBEekkkI5/aZqT7hjdsVj91nZcaB+Gki/29VVX9s0Cf+Yyn2tz0
+kHD8rDZ7e7dorVjOmiRP7kejV3aNUJZnw+3mGwsFToBBHzzjrPJ5YAvbVwYRArgVNozhi3MLkMlV
+UxjeeQ8SLN9YTTRrUC86cYaFNFd3q3JY/0zE/7QCCw1F+8wZxKM/LnVKZo7ddkFZzkm8I0S2Hc6l
+SMDelqpuBHSTbsVk8crNDTQqFq7yfrR7firrI+vCcSZydlQD4scEzuDAjNxr+D4IFigLcEEZQI7T
+7xPpip1dVEp1VqZD8dkaFWM+RJ0n6a822VNP5eXsWstsrB2CmUnu9H7eLvAVhkl7bswE3/a4mH6X
+Tft8WLaZEI68VNvVDz8uovH2BNIMjwlZlMshIW0bf1HabM3aFs2WnKRW8aG9TOpe5yd9GpLDRe3Z
+8UUc6Sv7J7Hy9mCJvI4D2E8enBHXaUCWW9Yhq4fqrCvbNWRKmA91j183TNa4qh+am+r2ruVDy2qI
+di1oZn12eH3qQQ9zyu78EvXaUu+JbvESGCjCin2nxb4fajw0dpC73jIh5cf0PoZuItDwqWQ0GptJ
+y20N0W7hboA8TctelCrmaz0ipyGg/m+qr7NtWju9MgHIK0nxo8Gy7pMN9YuJGikPo7vt7MW8cS26
+OFh9IwPAoXBu6XJH+Y2+AF/yTWnvFeahRdAbUfqJv1Wck8Mo912VTls4J91PB3dFYJLtwyeHPvA/
+PFr/0+r4vdVhoWJ/r9Vx9dT+5/95Ma35x0/83eQw7b8YtDKWQPKkMzIw6GT8Ey/r/rVKk5iUGKpt
+r+K0/5rW6MxxEC+xnJo4Jtl30xr557DG+8slXpluHcolvB3IPv73v78Yl3Ynf/59lLGOCn/rcFBw
+HqWuBLDrNp4U52SuPuINjwlK5CHUlTGcezJj8DD1m9+uyBsDk5Pp/T+OYtDsQQZKLPSp/bqOuoZ8
+k7LzcX0Dpx0UNoeVLB6ZHIiQXEjlA/Pg67NC9MDVY/Fnx4+l72XfptAWpNKSycjAu02G3SSRZY+a
+//5ZvXUUABYUaIyGuU0nuiLofGnWqngFMzPRv6DELmnJyyV8/yivrx3TOo+R/Tq7MxHrvjyXFh8P
+AyQIYjI3EwfilCQ2JW8tC/aAN5MppIkpuXv/mOtdf/lUoJZatRYqwaSkN/D0/S6e8ypjLRjnFh13
+pZ+piiB/rcszpALMbf74UIyW2XTzaqzOlJOxnd7QJi+HnEMVY+OPXrVsG9I8gi4riw/m2W9cSRuS
+M2gFLuNqQn55VlZjVy7zlNYf0y47EDNn720r6y+wfXqfJyLo9u+f2hvPx4vjnVzFGXplbY8cr620
+pdmXWtQom2xkHPr+cd64W+QBo2m19BVUfarQipi3gdK0BJJ1kYwB8ItsDvt0WB7J6xEfHOyti3j0
+zsNQUPHcnDz0niC3u8sY8jB5yUNmVDr1EsMimofM7uiqB/+NkyOJlHYwRAyWyZc3baSgI7wMgqtW
+DKZP2hrbi16Ho4om7c/fZ5sBOKmnNl5LZx25//7Uj2aqgL3QOFQChsJsI2ubdn38wQN/MqdmLeQs
+fjvKqxXXadpO44QsMG1J4sQ7N5/FAzoa82Iyc/HQusPXP7+Gvx9yvae/aWE1xbJyRZIsMbdqEfYM
+wy67bCEIkvSYu/cPtV6jk5UDwQhdIlQpa5zxyevceU3SLkpCc41E/qu8hluquIRw/zeOwsPOy0yV
+hB7n5QlFVmTCQHQEnTiCNg1Z29t0rO3d+0d561EHxMqHef3aoql4eRTSfNM2BSa4AtQMO3CJbD8r
+7DL6VTZdcuexXvUfvFxvvclcOpZDwosxtZ28XBmFYJva6It6vFo7Rmrf8CZ+1wUpV++f2lu3ycFf
+hjjaXhV1J08ESjRyki2WjCSCUTeVnRuaQKA/eKFOZe486zh7V28msxo+JKfuDyZt7BWsig6b0Rq4
+P4wpsBb4u03TMBSfasMnKXQXEauLw4VAOWQhdI4W1fwosfn1+SJPhDlE/gRCbV7Bl7fSg2U7jiNf
+Ga3qC/uaJn7SHRJjKD/yn2jrov7yBeBIFHxsrdDbHFU2v79rsovdRAMpwhQ0yQl31cetEI1xV4/t
+p9hW5FnLeHmDeUJDtkuKJw4StuVO0Gu9dxigjnxQCr1ebpD6abyRK9VBxYLz8synmfpIGaXwG9Wd
+DOaqXknAUz/FRkhykL5iXkf7pmMc9JEC/80j6yuOhgKX634iA5rHxltiwaozJdoYDnGhB5OIFDxV
+zNC8bzX44/BPn2rO9bcjnryws25I4g5XAQJtgwCgcA7Qc6g++CK9fpY4CjeYC2fjgDtdFlCkVAYV
+pfCN2WW+BQU9GE1gae+fy+vFh6NARVLp6EO6OhWtVzX8jc4hhiWPPfuG4YDYGKs7Xh2K7Huftsv2
+/eO9dbd4ZNc9h8V78soQnzNOKCAZgzedTEIOhauc65EKttUtu0/6OHt9KGOqwA/O86Pjui+fT3vA
+GSlqumhFWbXnGYzEA0l2yyciQtvzgQQU+KWZ9sHy99bFXatNuEwU8KZxsvxJuOcCFy8XN9Wsr+gc
+kJ3o3ggnFIkOYdFkR3x5//K+XtkxiRAaga2Cyhpd3MvTHIh6RJYTA22NmN/aQrQhqRGjr1Tyz8tO
+SmkqGLwiJCtgUHt5qJyIzHyyTdShE1MaNV+Greytj4rpN94CLK+rupeBNjbQ03Ul1u1O2qwfKlHe
+WkDTM7dJimqBjb9/5d64Vy8OdLJ0VzOOPsQe2JKdZiJ3kDZ0njnXqsgtsoQ+SqRYL87L5XvdVxPO
+wNOBTUk7uU+8x2mRJAvgzlHtzhJXKXd1VapQmS130zg2k9ZJUXK/nBmt//mrgN/B1EkstVci2smN
+cwD8LnnP139Reu+2EJb+mbzxISCUXhyAVKG+a5LoIwvqG0/mCrngC0EZwHOjv3xc2JPYtFon6lHQ
+uEzfPEZwWpYATmCI9P6tfONd9457ZbCHuF5Pdctu082dGTcUVEk9ntuDGA4lNIGz1PT0fR85tGcL
+0f0xbAipyKoX0SlEGGqe2mTaRNAu6zmqMdhoBAowImuEeXdm1cZwKdcsvcr1OpK9kU28f8KvXpL1
+o0sdB7ODkcmrvAVC76pGCFaUmCQ/X1crY6trzvjHeAh0KgjTccvgqHq1trTMyNtp4ZldmA/QDB7A
+sbHFZercONUHhre3zojVhfITqCQHPHk/wMwgNG960vcJqcOCMSjLI4P14qNkrVdPJVdudQtyy+gM
+IL95+VSiNG3cCQEnTyWcvq6ZzXO1GMqDkEP3wZfvrUPhCYXKitKdD+3JofpVv1KXJYcSMS6jEfpn
+s8zEwKvz/s8fB2ohXgHNom44/caK0k1SqTeYCJga40mk1mU0LDZ/fJT1M8PrxcUD0LdWqL/t9rrY
+STxYOSxhFvmbqt0lYL/Lj2xhbzwIFNRrP49j4C06WTZ4izQ3LiJco/nsBXQ+le/j4JEG//7JvHFz
+sItyLoBqiSx55VJHQZ0ocb4G9A/RFiFlF+TGmDGh9D6Iy3nzhH470klNUNWziJY5Q9Zsjw9YPYxN
+pUfNB8/aq48ZDjpakxwGXRvJbSdXTUPYVdZ4snzNRhIhMiluS2OqD15smYtfT1Lu3r9+2vo3vvig
+rUdkNoQFH2Uc4rKXT8MiiqzA4Vv7ZuxxAYWWhJCxgHsyziQI2oqSfSXHGBGQ5aFTFvovZVbOOqtq
+tokx/S2OfNF+frfdvP42JsI93DTo6U5/m0S1Es2VPDW5kzw6g6JsCLkZP+jzvXUnkRXqq3+Vzunp
+RbbFtBADY8EGTFs9DeYJu3XYEcn7h+EGNGSpEzx8ngbOI9IiTh6ZyMyJNkITgjqrkgE5ALavTsqW
+2Kh91aMdef9WvnVa5A/x8ODVQJV4sk4xsyZ1Y6wb3+mt6DwfZ3FoWEHD/8ZRaHaQKMg3Cy7my+fF
+KZzWmGNWQ7j17UU9JOVGWkb657doJWCStMGWg0bOyZVDpqjkXoqpeJ6c5LKYPDPQUiv50zYRenqG
+J/Sh1lkKTcSX5+Iuo4JEi2c/T43yUzlLRvqg4T9Yb193OdbDEBtokfiGn+/YEvhtwUWkWFtq6TBQ
+HaL0QkGXvNVEcVZPQFBsdbx0J+umISaRZ92Jzul1n9le03zwbXlVW/FLEONhMCJYg7dONxiLUAev
+j8kyX+xRhxsmk666MqWljhfWME1k8U1ekR7aEcPjBw/mG4saOwEmqjpeNEqskw8OkcsWOmwPehEg
+xzxIVELjpya9MExg9gh++OcfP6N8eFg9VistF/30TdBRqC0qq4iZIGjEp9FunXL56E14/ekBNUds
+ECFtq+v+dCtAvzmWLeJ8305S0OAu0qe5WpyDySz4g0fo9RXkUC5GRuJEHaxF66/y2xPEWmkjmOQK
+1rmFaWauYccAMkm0e68zrJ8JkbjRB+/5Wqi9/C6sCYZsffEQMp48TdNJcmHJWBiEZVWlEsLZsh7E
+MC3fxeAUoaZV+ndaIPK8SYx6X7Z69/j+LXz9uOLaZPeCB5V4QaaPL88YHiW8pAn+uUrYVFjYzk9y
+YR+tiuaUgNqBru6jivL18rkekQ0rkzQ6rKd7/m5Ks1TXBBIgRWcfKYZhz6vyUczFGw8NmAlqSQow
+WjenivF2Qe9VOevMvojE1iLsHDl3pCV3GMxRJr9/EY8uwBd3kcbamhrEiJiCB1vfyWXURgL8OoNU
+drM0C2U/sFw/K4mmVMEwZ92tVCNP86WnIwqapTs3F/CZGmNHaS9SnylZLcJF8Vr8W7w/JdaITL9g
+7qeMAdUrYgcisOvx4BlLke+miFnn2eR2Vrp1jW6u9ys5ifz2LI+MMx7qOT6LpqkrDmivtDp04G4m
+KP7yxNqvg6Rh1wlvqK4Ss+iag5EjjAYCkiUr8iFpXVBWkfat4eOTB21B9ljQTSvPt3ZWUkFuw9C5
+seq8mHzH7eLuulNLrQhdfGsaGC+YUdG5O0WQAdwyl/OOwH3USHwB8p9ltbrhAC1R66haqi1n5tQf
+U91HVKiCu4mYmaVtDJ0u7w+T7Nw0NDMdwEHsSuxpdgcmLMBjztZgpqedbjS3btsN/LOs3RedlksY
+jVYMZhS2DfpjXV88pIgDNQC+ZbU6U+yCABJ9Al+9S2CT2qE3IVwLauhDzwCkjG9yKUkzHRoqudBM
+Sk1d7V79tKYzT+WO0ZjOLVxq+iDANlLbl1AWx0BJaGJsR5qCOIFGL43PBkc6FjXsBB5CnZZo2nIH
+SnhW6qLUQRG3sbslWh8uTj4ttr2x4SWUPkMH7MQ67369GcY6dVGjIZnBBofLChDFcoRSLEdAhXmE
+VeTW3I2HWCHBaiUbodouSAheUVTRiBC9bKsMPknXFYHb1RREYuViSK8aso1xxGVotTaBzkjifgzZ
+PKOLhRw9X4AL4Op01aAC3ahmIF6eW6VfUgGVo5zMHv9AVizzNj2CO9Kiip6QuDuIhet0KMPsiPlI
+JtU8y7Ko+uWIub2fVx5IAvFIQkxaMSGGVjlVUOaes8kHoYlNj4zxh9GmBHXQki0ebWtm115Xune5
+5Fp9ico0MXZzaywl8UY9srrWOoJL+OyziVt5JssRbbJETvJtOAJPxgH2yexmxVdwSNZFtZJRyiMk
+JTkCU9CxS7YAK0ZFzNp0ZdJdrUNXiwCt6LPIHvLac+awWEkshahGjH1p6RCTsrJaDMcA2wKQLLsm
+Wn0edmBJAbugfAPy0nhE4G7qZWxtdIIrCAbtOmLcdOXDyCZOflnLCo0hWU5eREeUTJvIzAlaCAY5
+vo+pzLfWSp6BFAVSK+9XIE3ZL9WOoMAquR2PyBon6/QUotqKsmFOa/xKvZJ2FWJ8FLdKLQYANMjR
+GqZZQ3dTHNE4bH70a9uKxZfUQPvsD0eMzgJvqNmIWIDXsY6oHaSEYHd4U4rPsmnU9sJYuTzVEdGT
+qgq4HiWD3IOLQ33O4bMCmlvatv2KPtiTT1TiVnmeRFkfb2VJWMmZUmLNu1AsDKo3ep4W4kLLaiu6
+EiYZXhex2jdfF1Obk4e48kT0Y+yJJ7nVBaipLXfIda6Fw9K5N6MmJxVHrSb7rE+VFqwD74kVFqod
+LefVqOsyFHlkDWdt7VlTSG44JI0I8h8VdZHbsXbgoyPbXasusb3NhZNEO3zL0XNmRJMK+BWNaKga
+bVduHdhhAK6QOjIlilPpfR+0SlMY8/PFjveRBqT6mrRu3TzDZMMPeJGZ2Zg5kSEfvAiR9BW4mtL+
+uj4IxnNqjlIFG1G3ehYTLTGp8jqnQKy+oOTMs9tqXpAv8gUw6fGbMiryhyjGalHtEZINzuiLjI8b
+oRRWG0ttL+upidAdT27W/ooGegE3i2UWxnkqi5k7P6kpK6ew8iy/ml1cPgGi0Xz6bGqxEW0nHe9Q
+oI6kRofxaHBStW4WdA/MuJX6py5qm+qcmGwk6bgvGvt6OlIxOFsWYooVHX/xyr0JxiGpqG2zvv5i
+IrrXt7ORz8tDjr8TMBpOymWj0tej0ZjE+fDJ1pxBv5XsPnTTJ2NTdy/anHi2LQmyLn4Y0yvbz1gF
+GPqOeanITeOmkR2oXDkRDGyZ7mLDkZ9VZ2pujUgjuK8xiHry67Kzf0C4pHKZIosWKtnvRR3MiAi+
+LcbSTX5sF7yqvdPOPoU8JgreQL26IMdk1EIlsd0SV7KmXGW09RXEhwNBanOqKyvdJpm+JArzwU2/
+bv02eVTEl4UissuE9qLq23WdfS2dggRKoobaZ8lPL4GG4o/uPMh6ro8ZxTl7EYHwyiTA54lGS9F+
+WjoHHhxgRazpWGZWl09iDfgyYaB/njFueYdK0dybutBjFWXrOMz+oHoz6k9yr9A9JyzSTpOP7lnk
+CvAxGNOrn2aVR4o/VZX4mc2x+TmGqtSFYxENYF/GxSIFYKrLh6TSbZiQkai/Ah4ecEQUWX1bK1Zq
++CR6AGYovLi40pxZOnyZ6qJEg7R0JMilWrQETqaXdUCWcv6M6AR5aVZgCaKkq3s7SLFu649W0XS6
+r86xuPSiClA3UtFBhpnpOFmgUhDes9klyLKeS/0WCM+EbyMpU6TGXpwXG6y33XfXwNbnj84iwXXV
+In6Uak5mIovKcm4vc/PNZONDZjxmZg9va9F+W1xNecB5RlS9vRC3g5176X+OWm/cGLqQP6cmT35E
+Ue3dwus2vhkiTs1gSmLll9FPwxVNjeJ7P7KM+5ADIBI1GBt+zMbo/fCUIkXgizHhm4mv5ns71fmZ
+WWRY8UfT7X56i6x/MPgByG3OOiGLlD3GCmVNO9BdiivOgTN6006dLecBfG6ibYoB0Gcgu5pOTJ7W
+cFeRtWMiYg6y6BvI2oPi6xEMwB24luwunWoLrWxcW9+73hribZURDRDUNP5MDGdo6XEbCHXa6VS+
+TshsK73EiGVPe4jsBA4kChFwPolvuX2BmYvRLN131Lp8r4CiDrEFwodhYDE+TioBNcHKTY1IdZ/t
+SYNKqDvcRJL/1TrIuqz5HGGK031zzusx6KNI14HWIuMKzcVJBt/2ZgzwZuZQ/djVoD95pGGfx0a9
+EInodJAvFl1No12RWwZupSXNHoXlyAlSGaw0nAJVurUsAq03MO1yPWhit9xmZsG/GiKFG1XhDHg0
+Mi1+aHOKjT0m8knnBYmmcxwG0xewiB7+Mq1oPsMxdEmMhzMJWaAb7H6LSUdlj+ctuUd4ZFfPQTLa
+Vk5Qv0beQ8LMydosQ9ncWNmgYsGyE2iiOf6cYLKVrPdL6TTd6hmwrwaFC3NAZN7QuY4ND8Wvljnf
+ZJysPUVVsZpLsag6PrastA61UciIH1fMMSycAXuOwY5r9Flb+C50S2oWWz57ymfdjiIwSMnUneFj
+wrOYTfjJFJdAJN/QAUsh19fib0ksHC00csfLN7ykdu8PHt/d0HZSqG9RVTnnHmEDkH5pLBKOqSay
+CDIEjU+9OWbTdsQQQsZ7lyxMf7wqf54tMY4+hWJ8bUjVeTIVrRAbxKXRRDhE3mEWR+ocqJWl9tss
+SVODXUDeXxrE732d9AT5er/E6m2Zsx5D65pZqtR+wP8CzbXmYbNagUlAttZDIhOH/AIjsy5at8qv
+qwjxYJCgrL9ZnJjqt1GEPJdjxC80FnGWo5zA74Bs39NDuzZjGaAf8lDPJjK9moWuP8oUloMvZT/e
+9qoRs3y7XoZZIRrVArapZt63CNAfyfaIIFKR69EE9M4B2HmuXWg+oHTWVGlMNFL00cM259oiSX9k
+mgFDeaQ4TfwKZxU7NrPj67gMEUwt7Hjxz6qKVmpb4urNtuYGeVvTrlowaiOIxZArWd6wORY/cpVt
+Et594i63c2N33d5zCgBotlsB9mqGzKBiadti3s5zxYjC7mb9BvRbzPYBuCmOrKzuDpxW/6vQDXI9
+F6LE5zrrHX/pnfpZrdTlu4vxovaR7JkyNBLH7sIma3CA0IDmbdRRNvAZl2a8AXnrXWuzadzp/cLi
+QKWRmiGySeuunV1qkD7T2hAiWnStzl3KKhzV5d7r27L4pMFHbvFhjsplk7OL9cE9poe58Nx4n882
++85sbuA2yiRCrG+4uXYWGagVsVGZ66Ph9vbVlEjn3m2E4QR631TPhC1Mt0Pde19AByYJo5puPM+S
+An7bXJnOrZ428hfmmIGPZR/Z1yO1+6d5kh6NKJ3XddAVmQQqe6F7UEqo03KGAdcyw5MbpFKpMRt1
+y80IObvzY3B2X9Da9kbg6fl4S5Tk9KiX3gT/mKrl4C5R657xBZxdHGu5DjSQTWO965Sazxa2C5Yi
+wiU6OE1rxEpAMnN9ly15JvZxptCX7hskqNhuvQzGaZqObthoQ/Q1mqW4iU2AsWixx2oOZ4S5JLYu
+ehQFrt1WsBAIBS+CtZff4vJb2cgYDeW2aBPvUfcwYPplMhv9Xiapd4EMrEm+F3C77O1iNmuTAND0
+DSJlVEZ5h+vap1uHra7t1XbauIL+8wZ5jWcNDPOZfHhz4DLlHxdiS0i1UEuEOznl+EFETvSTcjib
+PinLMLR7mY9RuzMU2xK31NOeypCzz+wtKlFT3xSRipR9KcizLwHIz1+GaSA0I/bQ0ASzmtD6lJ3R
+Z4C0NHU8sB1vitCEKX+HVxpnKA+bQWZQROhiANiHzVZxtJSq+WovXY5W0/xoO6Xtb8UX1dGUCji3
+ss8xIPEpRRVrDRdk5+BsBQcEK84kYjDeWbUivgwKJFNqBaKTGIFjl6XIzu9AbJm6nx49tZXTUhoS
+s1U+2HJ0klBk3Yzli/Wb73aUUyHPWLMg0yJ6fJwMvc0DJ0H3xVtQuQ828S9FuCIQCXIp8O+de8vQ
+LNj8TQgswp0LfTtkzigCyyujn+VU9FlQmJNjBYwwosNyNDN7npW159rR6gzMJbMwtTLWCUjqTL52
++rD63VMGBXxb+JS7YVwVmV6APe20xXBB2jSYgbBhK/Uy5d09JrSsOhw7X//jPHnhPEFj9ltDMHzq
+n/7+z5dP5fN//C+cJ0//+X+/P700nxx/6J9RYeZfzKcYgBiYLmxGYrQr/zafEBXmoHCx17Y9LSg8
+u/9lPlGwrAB6IriLoEqUKIzR/uU+cf8yVBQqq4yeYQMCOO9P7CeglV72oVF2rIljMIrQhBBCdqoJ
+ySOeuaoQ5MWIpH1o8FE/ttoQ35nkIzlEQvVKf9D49j/UGK5+xgU56KWeUVwbTdSfx42sfzlNFZ8t
+TZ90WzVztJlPI6kVvup0vEBRFGE7m5uFwMgccUsRjDiEaZQM+ZWrYPsKE+K6JduYNv0uq5ru4zSA
+UfZVcpbAIUbkR4XqHIlv6NPibx3bOHadTrGa52n2EQ5vRATkIFJqpzAy8uJyqnWolBW5COx/Ccop
++PQp9O3cuuPNUbOEBuQoneo+b6xhpAnjCo+FfbHuXaQbHXhY1VJ9YxzUG2OZXc0vsItdpLzayeXM
+FDIPHZnqjyqvutgz9aVMSUyluJqLdMJVHUWVDRNX6nsB5bggPiNlKtRWwJKYRPXiVoV3t4QKvusf
+nlt6hBA14lYBxCjDqFzIL597rbvsTbc1bxnBmMsO81pOP3JyI4K+FcZbkN5z+2CvuaW6Wk/fSl0Q
+a7RUwv5E3mP6xAYdQZGhRvMYmsikk7Omq837Gq0AsAcn57NoExE34anNB2CyoM4VJkWupE9prIFg
+mdeUl2pfOTRK44jqpVrUDTaiWfO7NVEstYZE4XID5UaAsIaOoWgmgMw+hpFFx2Ay8GTsjEjT1O7q
+Y3SZc4wxm3qjvR6M0lX9YpG6WDlmg/vQHAPQvDULrTnGomUt0SGBt6alMXjrh4Mek6FGgBNxaqi0
+vYOcNRkH45q3Zh+j10ZFy/sNeeEYj7xxTpwdAQJEtRGwlvHYFRGJG9Exzq0+Rrula8rbfAx8G4/h
+b2xYlXtnTYSj/0E43Nymivs57iShce0xQK7ry84JVGzAYjPnirkb1rS5apapssELTxQBewmpUF+T
+a4T0l4gjLYY9eI4hnj5jc4xB6o+RSEIzakaSrcvGul9Tk5xjgBKZac53DI1LAshqcYzQbkaY3WZc
+EL2kHmOYiGUov2hrNpNcU5oQrZNCYh/Dm8au6z+x4Yy+Om41/4LdRswTEVyls/GiiG8I0jJKsewY
+C2V5fXfPTSIsSjZT2gNEm0eb3roomm3cp/GjUmBA9mli5/fFgvPJX5y8uKUGGkVo6ZH3TPtZ17fj
+mlkV9VHPn9cgKy9dQ61sqoHMV9esK4I/kn7brAlYRpnKrxUvrsU+RWUA5SFNNw5UH1OPOBPF6Qac
+B5FaFhQBoD+mE4NmXFO3lC6nlpiOYVw9HQudcUnl9kRoOdrVdEzuqhL5wyjbqA9jm2QvQRj0l7JO
+H1RJowsl7xoBRhJ5d6N35IJpNAERKeiZZu3yY3QYDaARyc4xUqz12OiHS7tGjenH2LH0GEHWGnK+
+lt7o/OoMlR0bCW/O92rMRR0sdd7Axz6GmRVGCd4Vj5oLbsDqYxzjQ1kafj+q/fk8lVjToyoydD+b
+LAzYuk097VFUi7DiXjwq8ZLPQZlV9ZnI2BSFKa12M5ixOtehNjLwoUlEM0XS7blqDRNZomEV431s
+SrIHesZAbDxk5NHbpiWb79n+f1KjtPhWLJ52mcwT4WgsOezki5pbCCEFNaCPgq69qnLiBbgtVA++
+WvNGVNNML7iQgiS7GaY1jHdQSte2Yhq/zAE/rJ8qywxffSzt6ziNhiKsVfj0CNyN/FmnP/BTsWMm
+xXVh9DzQmu40gSUz+wHjfOps2bU3STgTksbwesxAuPE1XXBEGAxIQ8n09NBJVZo+gW8N6NW5c8SZ
+4ojo3Cg6tEhmluNuoG2RSSIVKxJdQGRjU5e5Ib5KU5xHEmrlpyEGZbWJR9L2abELMjxitzbnoEOl
+tybIRPPd1OiOOJixNly2CeMmHlHN+DKKkpaTgbqnOktUx95mdNisbRHn1n1tCK09xOpAy80zIrlX
+REzxxyZYfxZsAi75rtjcBGWOh30immlvqfQCdzmohsxnkESggFFY5S2Zgc5zOyvRzBBriu49XEIk
+IQwpiCMu/dBu+mqIu61VJGLP4+O227FRM8vPZpV2XEsr5nJOMkPfjMUaYOFxW6+npaeBIaUsaTWI
+6a5nCX3QF0Pw7mRa/6214/RMDJKgUFu6CX30eazvvbFBLQkLF3xmnrdsGPvG1j7FxBclm04d0ifH
+XKL7hnEccod2SH8YqLnpi2eJeRvlJtct7cbxSY9n5adwJpRAf159fm6eq9u+fX7uPz01/74Wrj/q
+hgWZTOij/fZff/o8Prf90D7/G/9j92+kPP58wl1fnf7Mi78CC+/ftfBa9b34w6YiC2++HrgZN8/d
+UPzjcPFzvf6f/7//8e868m5uqCOffhKME2Jla9Mf/e/FpGFAEnmvAr2rfzzx61TdGz/1T/+z9Rf5
+YjpCIsL+13+jzvyn/1n9CzW8TlAbedQkYLiM7P+ZVmv9RSVDNDbKB+rMVSTwrxJUM/5CAIVRgdkp
+htE1tv3E8fyeA5p681QagOpaW5VioNf466xT+UUsDbrnpJcHtTVXZ7XhAqLP5TRt6ZwSwBXHy0Ga
+i94iDnVzhRhCJb5Hvm19nsahByLfmhvHUsSuIbEkpBitmPEmzyBFFiYFuntGXBgLoa0I+1yF4o3t
+ADblpmQYvlXTafyqIsP7XLelCDWinvh+jsqP1NOmJwYq27qxrmZnVA84bf4fdeexJCm2pesn4hha
+TN3BdbiHVhMsMiJzo9UGNvD0/ZF17No9PWizHvassqoywgVs1vplfW6FEbxMpXgnAX36dGjReWaU
+jB9to6+vhKcYH7Ywh498brr7wtfCUsQ/Q6BVF7Mtu5c+S3witcr6h576kaohUPQd/VjtLZCeDPvG
+sc4ZvARPzRnqeSSKtmNlDb3MGwTmy8G4FVBKBzW4+b015U88Noxu29tLTd7AILmrY/caN/GyEc0M
+mUkM2kNSfXoGp3FvjQCspk9gSg1I2+RwMxAVRCZlE49bPX0jW4MmJEuJl5ncAzJHdfBTCLYTkY9H
+t5hvdBaKcIFg2ivd6fdBMue7aSrWGlro8FB5GWDqRGVAVOeetea4jMcsHuqomMZxa1MZ6m0bAmYZ
+140W2Dr2Ii9O9TKyLEKmIg+YuPjOWx9JuADGOhAT2wVHbZqz2wISPq9Acaz5p0y62mufK3WWSV7e
+RohGlvY8OJD4pIVOy8cTzuNc7Rrfr3Z1Zec73cgbb79QD9zxb8vhqx764pElTOibynYjVNzZwadm
+SssnRjk1XPLs2+h+QZMQ/7PsdDufD0gMPmwl3xYM7psyfrWXdJ/H1b6NXdjT37Wd/AlSks5UyhZh
+/NZF+TJkkFQCer1wrWMaVEfBnuJa2l2ZryWb03WuxWOfl2c/js9tmRxmqI4rQKEVmrUE32GYbE8p
+NTS71ihl6NhE4M5PQ5qagAaz9jAwfK+jWVPwdJZp9ZwlPVkynWFHY+bfmZpXRdIg0c6vDl6cR2kW
+HPtOj3wduYNJJ6U5fkBm71Xr78zx1xDbD5pDrpD7aCdv8fxpTDFxHvEYM3r1W2vqrZ2b9uK6GB45
+XaQoVXm4lPVOFeDSqdUB940P5ESBkwbTDjprP1iQjAOAxJy+AcwfnLyJer+9ui4TQOfKTbP+DPqp
+N0UPKWlCk/xZ4CMSrwkTj5STZty3Q23sdUsfwzbIXjD0ZcSuiWdYjstQzN1Wt9vmT0FQn+5r9zY0
+RuEEL33qvyQ6qaQArnqUas3BoHXIbn6nibOmnjhh6UKVt2DnJMoTN6MUoXg5yw6Bzw4LV71XVsE+
+ouufVR0Udy5pXqHN1EKO8ZsRpJGlqm1Rage2su0YBHDGLk76xfwzUxW4T/BR2s5Dr4sf7to38FAE
+vttWBLfSvlty67ftyEehi5eJcFhWHQlxVGk3mQPFp0P1ZRRavh0ENUVqyh4JtjHoZipusW7exT6c
+pg5xQBqNfx8b6feU1SlBNOreqoaHyXE+hql9W4PRsKVrlyUrnghIOPvk70RmJR/0vviA6eD6zO/q
+FQozqyO0XzRQPbQVdTZvxt74JZT8Vl3/OqCR2coei1FZaL94nnyBsp6NwTwg63ltk/bFT+tlM4rs
+M64IElJIPXtnRpIo/YfBn/aBoe1UOtxIqd0y37f39YRcok2ynYKRlfW3X3N55tzfi9TPbn+fWEtY
+1Z8TEWw0cl7YWLa59m5NBNp0RNoJf/ki4D9UbrYPhmljYSjlAh1gNI102zbXJDAOC+iCdIfPUZXz
+Vw9dZpYoXvKXJj7rHIO6PvyZ3f4P29amRGqCOIVEHzDhP1PbPdD5RHI6l8HS9ee4+JGcC8TXfsYt
+OIUVEJmm3fM84ppNzhqCbieGDqI/CjQBCEMT2tbo23LrNNZDG8vvlvazXeBWb5Qg3ePdoDS4fvHd
+aYtc5xehUFEdGDnUVwvmSqF5O6udJdW4Lfpxuzjjn8H0b9miv86GuLY6PX9QTuQrVqga0E01Geln
+I+IYXSX5MZOtCzMxqy3Ss1BpZIUioNa3S+YAghfwk4zZLwJBByjtgW4N5JVG/+NW8fOkE1oDsXIu
+sxy+JCBYbmzJhwKcJGJJA/JJ2dM6B0W3kZfQ/alL1M3q0k+Xo1PdZZ21ddRwJ7LmB5Gz4l9nl6m1
++ZAJvCrhbTZBivEPXTDaQ9Vf07l+Tcvm2NtxZKA6YUfWNa69lETWkitBrzHHBgnXuvk2lbJ/08lO
++jM18wx9KBSUlTwonQV4JjhtrzfQwC1H/ZassiuHzLeRFrc8NrQH0pYjmZAu4EmbnrMi2Lp4gy3p
+3HiUryFoVHvapHbJ4qNdfpyujGJyOsfhydaTc03DQ9y1T35qsUEY31miV7tqMAZSxhpW/O+saTsu
+xBR2C2pIs8IuJs/CartTW072TSG7OCj5CcTWzg7ifzKGSiLXux51myIBqiNDzlEM4EF7j0fr2BnF
+wVwE6VjxNnc/Eq866m6ycywSt0jDLkbiT31m/+qkTHELaoO4tjzMuH4L7V3CSCTJjfAlag23kiJT
+tyfE05UnMxbIV3Kyq/n+ApPJQQ+RI/n6fVpVZJgV+ySIt9aYXPXqu7LbD6xyG8iZrZrEZXCLUCX2
+W030m25VYU02pczVp7sU24nJgpT7EXVYfY1nzAvSOxhmD/RtAcawwXlJNFvWmXR4FKA0vKFi7Bvq
+OtHJ1UP5nhfWcZBzAxJ316womT9+yiwABtfCwlgr7i2QQnNXGTHgu7g4zq+stu518IlWrXIYb1/X
+xkPCpWJZf4BlOFjEqbHqLfjTyKbsLyIqPfFZEleZ6W9y4daR4Gd9cesopyM8XIsq2dKYAPlpq5O0
+yBvNKuAjA4FB5yNckCl8bC6fdSLccmKGp5HoK2CdIKnrHRGsqG6W+SB9m3x4e4jgqOs7ZksqAxKx
+5pUm65f+zBMpdJhmkiIwzkFFifnUpD9dKeeb3Xg7Nw52cyudEwyiv6Ph7NtNi7sK/BHeLiX3Y3CP
+CbG8o5ffijnZETL2autGBMF9R84PJ6K/aT3Z3HkGqQx8RYPh+JsRL9zVD+Djk/NSEYWpMexsncEF
+oZ3L9triyN96C1qYrkufW8MlnZJ4LtASGYQjks5tPoO9bu3WDkez3yYV/3sjEFu13UZ51sFI9xQH
+7CuH0Lc6j2hMPyrPI94x5pWKm5tqX2kaR4TNQmWN9RmP7pYqgWvSjuVe7zxCiEkP7/4a9afVcBa1
+s3VX1+pkTHok8VuDNh4Z7SJqH8LA7SLPv0sLDb0gGPCURLoGe6mQJ1lG/AHmvDXq5kkiAjIqmN4k
+n/e9/Ts23k2LKWkzpFOoaQOcI7o8zDAIswob7k1tMmFHqf3YDFemWSLSC4yS9sbvD4Y7Hixv4KYj
+rdUaul3uSIfJFu8O+0rpmgcNFW2Zv/arMr6rL9bim5FfzKGV+buUDySf/TE0eFAeSOcr+3eC+hr9
+wZ9fxzk+oE5HQ9fuSJZ+1aQf9cO8tTQaFEYgCGSVpFjeGwMa9VL/DXd3wBa74mU4sfJ94rIPqY9k
+IgUv8F8lB7Pw/5hGE05FezRKFE3C98IkNTc9/zJlpLcV0PQ4Prd+EjlcIMGAbAEPoyimk8ymUOTp
+zlhcDuH2yWmyPmIQRpCspQ6j+Z1RPJfBe9YeVaVdncI9+XQ4aCKIAkLoOQmKBJaZSP80B7Kuckh2
+01IpIaX80E6LYmB20zZ2tG7bR9yj7fqF7t3ATPcDf9ASxvnlPBZOuAD0n9D8yVAWX5g8Ptbcey+P
+y8geu6eKc191wwYHJBrW5L6kOe8Zjfn8lNTxxvVuTpDcSQMJtlnt3H7ecxcck6Y8SKdTRxe9C1+7
+qH53TesdBNpbHOubss2OcxNzjDibfI4fZf9almR/BtZrnyLGNLqNb5ChAI/5HFtppKMbLE3gNoQQ
+SKi1fWcoLsJBbeBw5CVHAQ5Tu5cAN1z+Po/VXrxwsDy0ur4PAHkok6ADwgbfik10FpwnE3yvNBoJ
+HmNODN/QtbFjNFE6z88+oPqilnOcl/sRIS00p42YmIrAkwGot+gNDr1ygq0kCJgOit3S43UXQZhi
+rt8uiR8c+u6ta5lmyJbKxiIaE8gFSR1JcqXFotmmnmKYEI+25tVXB/nYhuBBnlAcW+bbgj5rsLUr
+8czcw0Goqh43L649vPVJ7kSOBiaK/oOWYGK0zZoZ3sn8bZBn257zZMjOvsPnq0fZosKi9QRZh9dW
+5Bcv+U0008axfw3ah5rSYq9nFTmlaCkb5xHS4KwH7QbZe0Ro+lObMj4sj+g+NnH+1erPyEUOMd9W
+yj68tNVVgWI+1YFZbgcHWdrs7LqkZK3khCNEOerq6WhkRLtWYhl+a1PP8VIP0VibZzUDL9aaQWXu
+mN9iP906c/xBH8SxZ/rXSWonziTsDcsD1muKszdZZ89jWqVrJ0pmrT4R5kpuwyB7GI52OzsSOTdL
+bJhXA7IHaiSybNcRU21HrBeeOLsic+dtbUztr2Kpt/ZodyUCZ9rOQzVmcbuOa+XrHGPN7he4XJH2
+v2PlX0Se7wKR5oeyJa80i22uwETT+wv6Au/YJymNWOWka9UhMYZB3EjnaOQDXuvJCEet8bQTKtST
+nZchospdnPZcS3zZDNFM4vfgjSy1fgRtzTCZa98ujSVT0vG2+2LrOOR7m/PdYvghZW27gkd3PB8s
+LqSo6QAxKavbl8UqI09iFoEsI3B5Q3uST5wxhrFT3JX876Ny39BGd79cYILQRLsWWuSHvi/LWN51
+Vly2X4IccIUiHSH1zp2Se9oB6+aGg4VE05YMFS0ktSYVkV7VtO8WgfkKADKeENPMt7wnw9Wcmvq5
+5HA89n5X3/BoAG7UTH/WJlfan2nmQBsqYGyqhP3fS0keCPVssb51HU4ggv2JTMbT8kitinijrqSJ
+4qpZL8eRb3lx4TUlD4JZIBBFK2xedK3+lWvK3Tm199g0VUKULG/Y6SsbKbxfReOYDDS78/qJ6qTn
+JW3G0yK8CS8IG2ya9MWv2q80VE1I59jr67OnVmTJK71PPSuQczBhquepDLzPFAOVSawMf8aRAXDi
+p2P7tG5XeyRAwUUfFH/EFnn2J5eNwDEnhgjkX+mD1GRwQakL6OPXc/KAFBCsV9Ztf/SRK15zHoBX
+gGr/2pMAdllyHg/SD9Kziif/jh5fPmRMkGbnPpPIU5+SZnAPknSqF99kJctJvs6ripfE3awfbJXp
+BzK2G8Ka1TdQV/dILLra2UJbX3qVfakFb6BOsVqoyqDY+9rcPqlFh47M0/U19V1/lNLlf+xafh44
+UaSqbKSPYOan1sEY35TSXvH8JG/SoA8GYTEj+/orZdP6ezVK/y4pZLrzhkUewP6tUDqr40T1zNHr
+7xR1OT37WEFulDXJu5xvl+kgJbi9rZKHxh7loe3rnC4V1EGd96ObDT8XniOkDCm+2dAWd8oqC0Ff
+wfqPaJhOdcOvVXhjbjIIeCnFqHa1q1lI19AYA0BOGwiN5EGPR3//zzs1/fSMBCwG1rCn1bbzI50k
+g21PrA9M3+aHIFDpoJKBH7x+tvVY8IF09NATp95ENaxiRFkVP7hr7pUicFs09DWlzPfo7eNb3vKy
+a1eySEN8WwwomsHMurzBUal902hPRNHyxiyuonYuvyViFsKD+ID1VPvRhWWHfKpraGXwowfcEIKo
+1X1NGP5W4hy69uyWH1mlP/69mP6+gEWfv7RFfNZZCkbYTcWjQBSzXxOIVcwL//vi4GXJDS8lb2H9
+gMhb5AVDnbK4EZMflBwOnsNGDniY66ylCA3iWxGT6IcKC2Er9Q0HabkMg94UXGTcI80L+BiKJRU7
+vg+34cOudZKGJSzx3h75etATfFqx3kZ/XyYo+Q8dmm/1JHiZY2CRMUsqObG5wUU14u3vi+vjTG01
+OKVHbjn2IJvXL1FJvdtz7KP345eQPHvi/K12gmbJUKj1k+lZsdbPT/n2ibqs+6qtVrPCD9wbJVTE
+5rI+JHyFIxykEHQA6xYvhvwhsv74DXWLrtlIvjUXpwihUpyJtqeibr34aS9Su4wbnutJ+7GC+FWi
+KQw95F47RjT2N5DBjW1qr3QB8cZ8fple2fc+bAnd28NGMAOGSbwUB8Lx+39+PUkTJ/LFKUtZ3yVq
+fX7CWMUHknq+7J4fqmVcWegBuMVJmO9xe7X9Fu0Zl3ZDZYBuF/0RGa8f+YK3jkeY5pRgOeXm+gb/
+/jiOnL+vqpuG4EKnyRVZVrvHnGihW1gvFNnoB0lpE6I13mGN6/Tm0yIcKW+sTkgDi0eVmlZY9ZN2
+1mzl3/lO7++1qatOuao5L1qVPPy9OlW7TL8IOuhoYrK0sxR6cBEjv18prgxsBf/+qu0ERXAz9ENE
+48KsoRHl7Pl7R4mOE+cfiqKc+QmJTMVGwHex+GtPrEwgEcjFFpoDWv/Z8HEmoa70OYfXI63t+C8i
+5535FK28F5rmPQzpp9uZoOlOFe/SQVjPA0kEhzgXzXOvq3YbpIZxQj2mhaue8DKZg/4e2BlH23BY
+Yfa+ZRAVXU0Ycaplex5B7kO3lNq2V+3NNx8DZ9zZRb2TrXiEomar12Y0rhN7AJPfbk4kMFXi/Mna
+artYjXecF+u3W1rnxpseVS9/BxAeEU0EkS+9IDQSy9lRt4lrdRyO8cJfJp67s1V34BI590OjvSZL
+MKK/nU/9qoN0KdBhHe1Ooi6Ke+qYm1vDPwSd+h344wcSz2rvtvKrtrXLwNSbsQnZQ/NJLtU9ieKQ
+ymXODv1TxJg3EvKptJ0cp7fBsn/DMMDpyy9OsHurLtwPvFffVACec6EdK4vUflPdJhuBQD9VR3ZO
+69Dp4xBi2vqgqWwNV3VqjuP21mIGqIPqYRD9Q9uk3yidzUhrCN9yqr7bz7Z7hKmnv9wBmzXepqF+
+6uxqiVheFux/iV8/VL63sZT1grr16Az+m+3Wl862ggcKW2hJQ9KCWXACXxLx0G1Y1n5a1RxyxGF0
+DuWUaWiNjdpqfu2SjLtRBPvOaTs+XvOVHET4LOeOkegLt0OUJdJ8JSL295DaBxXEtLebj6myd5pV
+RLEbbAhaICV7utJFQOOZSaC+azTtrmozgcywfZlr1D4WKgCSANEqhn5vwxfYR4YzFB86fcjoUsm6
+OdeO8eiovgyDypiirEOaPUGYd0PySs79Oz4EO5wVjwZ/YEDucrKEwcVIMKs2tIqdKhc6Q899Zyt0
+vhFVNCzqVR/5aWuEuPf0A64tazsm9Wsnm3fVpm44LCPxhFpQ4CgnoF51jr0ZOKXwa/qsyHUGXIGf
+DoK63/ajJUIHs+mTHD6N2A+dhndjxqkX0gwBD0Fu9ykopvxowHYfGm6mTawX00vBwP05DnF21BZr
+COn41I64X8o9777YlH5vMlj6IPujP94wuxXoscclmrOc3iQ6hJAeLfk+qC38PZX20GmSPdtOSQ2X
+bgQlif5Ba+1n5F8/MD7FyYjXXsWkRynDSbGzHTc9mwvaM4Y8+TYa7RCC4nf3GOK6cKQzbv0F1l65
+Mv+TK93g1PR99qiONCyjcfKrZ435e9qn3onyN77kIAl2Lqn5zDloNOqxCk6CCxtv0eh6R4mlYUf2
+tPUqfITgqmNuTfGNsX1MmDEHfTCjzq2wHzmzA2KFjP0kKy3foRbgy3CE8TnZJPXbnHU1DXhti6J7
+ar85VhEno6s/FjKxsJtqmf5JDi78v9uU4uwICk82SZ+WO9G5HKJI5XFmld6ykY7b3PVDCn04z95r
+Fmjxdkp851TgSgwNNGvo9Rru3QKDJo1fNP1tTGOGKhIMcBvaSbwNbvJPlxTSDfkpIHTLRMQ84vSb
+dAbrjPIq2GQojCjzIvBtoIHyMg0FtTheU341fpIb7CWBfta11mAtN98bH3OQCSF/bGqEKH5fNv5m
+Ja03jjPZQHuDxwVZYwQI9YpJVO+DOd0vxgzYYKNUNi1rPKJETlRkuy0TIKFG+iHlCXyJiX55R2mZ
+fZFuuz6ONOpI8sIMLnQPMMdNrn9n47/ba0sTPIGKGvztJWh+fENVe4HD4uPvyKsUNnPkvcQLgTM3
++YfsXQbcOtOCjeMprKPjPC0i/GdsNeh98Bffv9q55FmZ5/ipl94FK6UuaonWr2BbazwyAbaheyBA
++12HSo7oP972ZsqG6UcYJmdzLs1rLviiwzr2vBTsVqErd/uFBpq0797VtI6kfsGQ9s+gjVLoQO2W
+g1uRsgEe9hUzPsWqxWPXpuKKTKr8KhYLb/JYuZ+YIuRtxmr3Mpp2dknbOL6b3cJ51KnXOpQ0j4Vp
+O8LvFKazHIJOxxZQodraLzg0QKvTFNrPVJQzJla1z3OenbhSNks5ei9SS5u7walpSlrSaZssgOKi
+ScVtHjxm7IbrTi/dbqevejQReI+mJpe7aoBLB+LugzBxV2f2MpcBoFfq7CGukZ56g0+fVkXEKACJ
+M/wxrTENk87I6Khb1JlAXMnOXS476Yg5xM1ZRovI6DGv3ZhGL5PdttLlBacusiivTx3gPUMaP0DY
+1sXGWH8PASzB9M2A9QJpe4gGiVvMGnXtqkGL3xaBD2tXQ/Q9Bnz0a6PW6kpvZxRdpAN8pIVR/paT
+KPeOW2sVAAQ4Vj7YitOYTsjHsnDiQ4zjaY8h33lzHA3GluTv9KfwEH5iufONm11rS1StHnkW2P4H
+ob15VFOJuBfpnvw0vF546+/srjQKmecBb123Us/pMcZbkO6qwskPjkHTat/ZfECjAIHE2iouiajp
+Y1sVvHjQmmC4ON7oYYsSptp1OXfFGsXhvTda1lyQP7VjFKR29kuaMSjCPGbtfq5H71r6I74y2lLN
+DVFD+b2XJGaYZULgLm2tFdHVu1yEflMxMvaKa1fX1st+ne4bV8/PRuszDA1dT72lbG1uFtTcPKWN
+vHissBXcFdzBZGDWNY0nOrSoQfa75V+HePDuc62heZPkgxeoOpB5xvy7WNMySqPW8AOwoNfCJfPu
+V8CmzSbVD4Z5qddVZZvwXPWvftZyU1VzoS08MS0oS/tvwkJj0QOE5tPTzsWUWkBzjL9aZLRzDnxm
+ob5mQSfHJqiV8eH9TW9oxo6SE80d7ewM/IaRw5t6GS5GlpeXlqyfHxzM6isRRfY8DUZmUrDrCeS9
+nXIQB/B9cnXxMKlDHkLaC0EylCAFeszGNdDHCoQ7iZOmLRRTAafAmvuJ6VwQ3PpXo1TLfd6u6sZi
+IOsCMc7innhWAymPsdO9YX+F6MwQhEMjGFiltN7wPtBkLyRWpl2UYqWuNk0PncmqRIDFZOTVkaP2
+mcLmh7mpW8KLazxnnt/8OLM6Md092Xg4H7AAgbXb4jDOhHlKfFkgTSMAO2Y39xEFpig2lZp/2e1w
+P2M3vBRCAy3ETS3jxV8PdTd3WWHGPOICtcMU69nDnJcO/nFz3Out8KKx950Li4/7gJN/2c/phMho
+SNqHrkjs89h67qfnijU7mcOoDdbB0idKdQly69eUav1uYr44lXzQqK6rGDX1qJyvdHLGc6noRkQ3
+0MHSON5C8XSzVFbYa0BcBzctp+kYTGsB3yJdzMRVkgXTXjVFdRZYezFGap751AwDXY3ce+PFbaSx
+TywEPeDtrq9C2kt03t9iz16IeXEiZVpmp0U5oxVZsYXXODalempYCb4dCWCGWt/4HGlUPsytoEnQ
+MAwG3NgzXy2HmD74/Ly2EMCbwS+LrzPdBq4DteV4/iOn2shtWHn9YR6D+Zt4R5+mBPxlrIc8ALQD
+JkqMvw36S6Nk8dJdFyZlSeM425dNFWTbuJkztNuZ492Abxn+p7EBqvN59cSrgDLjc7JOqNubl35M
+ki/horgW5EyAgJWAWXZl36Estr45RtxfWdME3jZOK4+pzSg/OdaGe2p72susu+O7pLGSmU0Y/lbY
+qNHnAA//tDYhU+tHAeYmrRnS4Pe14a2pQZY2AeY5ZmFpoQjqnGM/F/3JrPzqyYgn+Qw+UdKyDe2G
+Hwxv1Oe0pOrJ0hz90UMG8REg+49GvRqvslLlIyCkf/DcbiakeqivRtKI3249B2clRP7HhVyTsKtB
+fy7MFjs3i9g9XV6sC3+bKB1ur0+vbYv9pIb4aqL2WhusRidMm7a4TI4SdygYoq6iVDHRzHLXikVc
+gL0Rmhg10ouiAqz3MHsbQtB/2ZiZtR2C5YMcWXerCP54n6va3re+c0Z5fZ/j8dwGjVUSRxBjGzQx
+p2zGrq8Pqd3SYdkwDJfJQt8m7iMy7uPipM/pGLWG9ohGtnmg2iR/FKaId3ZZsJXW8VWomZu/0frX
+xuhom27TDgA5dq5FX3gfDq6T24Sc8I9YrPmaFHmmNkbSsxXUVA9bRbBn/rky8WQPpjcNh9rIg3vA
+qf7LGZxsX+i9/HK0oT3FcwXJipxqLwZBZWRhG3e+SVeRt1Cw3eFt3HViJOayssc9ICYuC0Nqx7jr
+aa/vmsW5aF6u8HOkEykSgRD7ckqy0MKUWeD+1407raMFqaPQ6pz5kxGxg6Bpa5QfuWoOscHu86F5
+zux8L3Kf61qZdnptYHFOhbS6e8oKrW2ZBPK5z9v5xMzisiGDz/yDkiwc+GemFBAV31jwvegS2LQq
+mKYIeYByE+I4AyxHNtR+JGeNRyTHuX3rijqNwPvaXV+g7u4TbQ6VWq2mCx3dDSEENxcN3oVuK3lq
+eiu5wUbnUV8n812iFfIImbQcbK/exr6ViO2s2caLS5/seaFJ9NiTzXMHJAFzLOo+vXoFeI9ZVhNH
+O2xAxYa7NTqtuGVd5eyQDwfXrnSD80j0HI14GlOAPpXHoWj8nZt71O/G8yyOSdzwl5V5GKqyv2sN
+OeA3BLTTw75VXXGRsASEUBjjUD7BSzQKes3v0RyTuYqZkNbCjdX1LY8zZ1HPTV8Pl9R3KddklAuJ
+wnGY6jlFBIsjekloyA3pL3hlsSfCD2mmcVFs05uECfG+KEpAm3hsuJrBB1FNLcHFc0qMRLFpY2YW
+KQ+MchiaY+LiQ+4lmRUaVYxHTD3xL99LCbApp+yr68r+OFo2iGs7GA1EVylQvpE2CIyX6MUjjnnx
+Y7O6ncgF6E/5PHGeA6DFNwsU6mzPBoj4XBlvg99b0Mvs2BUdDHDvwF8yA1HrEHLDFdb3f7G5rAP3
+rEqwU9SNwPoWtuPfFovT299ON2I4unfhrxeNB8gJOYON1LHT81/SoGo7sDJkfkdPA6Kv2Q9AtVJ2
+F1k3zPMddpkfe8EKurFrPXmztRLiVOHbf9RRZe5oYGQBEHnPzDRAIoDqMDH8BUbp80KUaAYApW6n
+f5vesi1cBVnfz1+48RXhNBwvlJezabqYGok8oM95XnkozIyhJm3tWbJq7eiNfdW9p1SiTHP05Z4q
+tJUQa7C8z+AclHURfN/W94jfCaex1EOeTd2OyuB05zKVbID12hO6Ke8mEt0PjYFxwEA+OvOMQ6so
+PX+/aN5ppv5ii9oSYWJTMhXEdbjk2kSVEkQAfv1cN0PdQt2g977c5ZW/XDV9wlE/BO15Sm2TMZD3
+WCN7PlDZRrCz8px7KzjhC0Cb05QJnYb+9C0Cvlb6EEBSyyRkW6u4TJlSeUqxRuUcz194G6bnvFza
+J+aQ4ALBhYBVZ8n8K7atWj5YvR/FD7EqDKt+ZrZP0gHlHKeZHkAqJtdHLkguMGZ6Jm6FXTIdUCnZ
+PM2GMJsSO/743wv179Lvrpb1n/6/C+7/Q7L/f1ikv2ZO/k8i/ce6+0rL/3CJUqez/p1/S/Qdesh8
+uHLP80zTcLFj/j+Jvmv/yzddZizk8WTmebgB/q3Qd/5Fpi+6fd/31jYyfKL/n0D/X6Q2rT/R0IPV
+Y4p/9H8h0McP9J8eUcvDxGpwDlDrrhtYT/9br4OYMopfgeNQoqWombjwlzQUU1o+tbrZvslAz74y
+T3p/ikI6R7ud7GOsVfpnwWI7hmksBUa5pkHCXk9md2dinyMTx9LGb8lq8IAJdNRQWGkxzaz5bP82
+jLh/83k2/8a+hpyA/rzyyZYlQo6BxvuvQiToMRRZFy2TFrZ1JpxcxJTzDrAiHUKObseR09yXgU0U
+UpqhPYzG3Omfe3BD0pXSyULQMioNFdyMKzys03gJ60onCUACWHyXSNKeZp3jZF/ZncR4xRy3hrM0
+y8ugGQ6G0461fQP8ND2PSqxe/Tl20do2nGobs6rclfakEx5bUY+5duTM2cSesi6tA1wT2g1ycMc1
+uiGikCX9tp0lfQw8KzHg3hONUAot1558TZff5tC57zgM4dvmQaFNzkWLYtB39eFkiFR/x+eu3syi
+6eFSqhkZkW/2efGgc/UQRGroy8uSoRhDrZAREPNf7J1HkuTIeq33wjmacAAOMSDNXuiI1FpMYCmq
+oKUDcAB7erO3A27sfYjqbuu+NNLsjslrd9BdnZkVkQE4fnHOdzS9FQGZvMS1Lnv7m2Fh8UkmaAWg
+CO0/o1s7MK4sT7vAIFw5HC1p1oubV1boV9TMdojd+aIJWHTIaJzGZBvAxSVevJlCcwMGw/yGC4M1
+t2xDtrMm/o3olOWL4/U+hzov7nDWh1Z9D7l9uNWG5jGClX5hTdksUTUprbzJIa3bjdl1zpNmLHmM
+xqyhD/ZKFjuGzeQJpTSyMxDyxiup8rw+gTZTcZZdRwXjU6BfI529ZdJS4ID0cf71CoVLWROxvIq1
+9h6HRgG+MhNW3+eQ1ErgOVxX2bKooc1hblBhw/jBkR+/sMDiVVahoP91lM0jT1Xj41wuvrdUlcF9
+JENcemGoEkJsSZrIDnxBOa4aFl0wB+JIY5PrXMiOQROoF9ySctn3h0wk42oUr442UC8QDiKjnWlZ
+zjawhwFJBeyMZc7F41V0cY5/MFYebXXCI5DhMxYXclaUexpnFN7ICpU49X1KH9a1oFJVRIIyEpfY
+Gsi+7DUPFteqL3BoUCrVdT5+a1C4xaHl87v1q06gcArhhhhzNwgCVzuUEDjCjeCUGoXb7GbQ9hdx
+nAG3gbWboaCDn1D5SphrnfjkocOL8xE0QHp88twQFTf2FXy0Y4Yld2JsBZtRVbYDsNlhWsvdTzGx
+xPW852zjP8mqjr5jeq1vox/jDw0F6hKSk1CrzNU8gW22JLdz2mePZQhpC7rb5Lz2IOgUIRGt+2SP
+JSLOtACDsEPoZKHMQw1DV69cYt2dUYU7jL+EIGVBJp5dwZjhKJwpeiqLVCOJwWQ7YKIDmpS6ie+s
+OsaAXP6B6JnuyhnNk20nq6r20oRFQtlxvYWl5qMrzFcbMAZYpIDp0KquZOWu61z7j1FcMzyg3DE5
+IFIWpTOXcbAL7N55nLliH2HUoDxx0ig/Juj02k3XK0nzLwdiUuu+EN8dazAgIrTXbFyRKvfbOkD0
+jH/D6jesdTnK6qCgla1Cv70MjAGbb0Ov7h0G3F9H5lPc+6mSDX+N6ACUREMWb5ROu9cGZc6VMGnq
+OKPVTWozd2B359nXllObb4hrgp9ma40/zc4IfipH1mjtECRNy9KA/PHQVzFrEgTm0ExFYaFSy9E0
+APQgu3AUiHe0Roa7imJGSysVzPYXQNr+AbwLAmgVuOoxxRP6VWBksU82sPS9MF0UV6OvMLQnA63+
+LiTwtoOiFTI0j+NGPA8VmnkkK6gJXMyy1+S0hh9Bt3hhOEXuAiPQ2Z55GHdI2MkYYHfhCPwfBHvv
+mKArzisx+uEq7pPpSjf5aCI+1eOnRzpmtpLG1H2lNsh+QkdK292Eo+XRTLaDuUl1lr/3hcfPjGu/
+HA8kt9ufjOVhlAXTVH2kxLXTAFBy3lipZf600FNcq0lZHyzkGjqPRrkfwzKDiyWpDSjpcnUKku5Z
+MP9AHpX1KH4m03KGQw6qeNo0OimwI5jGJ4083b+a2TckVUdUiKrmPL5Jk8ahpyiG8ofImeDQugdZ
+xoXv5IAPxry/MIqR36WNVOdn5Drh+2TX0R1iZHXr5nH3FnfSR0nKr++Lkri9GItGmJuxnn0+t5rN
+3zrPGACsKMkXnLSj8DqYzpSP9OJxfy1Cg0FFJ2DD4YxR8hGIo29ugO4kt8IqiI6vzUTigQaKO+4G
+NQ0oaJtEevsgzMdnqYq4WRGi+2whUXlyWmlj0YAL7G1SmqF0g8kZepoDVTVd4W7FFsypDU6X3dXo
+8YQRBaJ2u5YgDYNo3s7EgJepxWVcki90HcvZew+6AiYd3bfxk54Ut3s4OM5NiPL1uW/K/FFbMNM2
+ymekjYtMMntedH0rxSMVy6Hrj/dZHskfuFvdC4PT5YgAAw1yxJR2OLLF7rIdGDu/W2c9oZYb+A7R
+MYXA4+xm1+7uVIAFfTMg57tIwZF3x5Zl9Xs14AEb8fnLHUHtPGCSYO5PXtQG90jwp3HF71yQ18wk
+OFzjum62vhi97NAIp0wZWNXON8KvIdnijikvnLmdnx3dsxXl4QPNKrQmg8aYj2tPy22C+Rri+bV2
+AtSjCLfIzlkc2eweJJv/rBt6bgors7aF43fYQyAQ16s6ZaqyIt493SL96a/7KZhe+8C2H2VmRw8S
+VxWIo7FRJm0zALaNlU3mz5BD5WjAzKzFosdzcRy67JWSGtFKOnW3UZdiYMCqXD1yIGiMKp40b9jD
+2uOasDAnXclkcKYtWL5CrlFlm0c5aN5/MMPHWxuF9rwVx4DzFTVG+GTWjnpxkiB/x64wXfQtDee6
+1ukTT8vgxddD9W1COLht+7r4TOUMamCcRkYg6HVA6tg0oEwjZ1SEvar5j5OXp7vBn1N+664XMtDD
+lDBuhROSTh9x3ETrzMK2lQfuIFap1YOc6wavuRWV9q8nWEsX1KxlfRF67aaeDPk+TEpeeW7afuRJ
+5rwA82ObqGjtP0EzedlqxBlI2clqiPm9THNmqKA4PsKIzfu2j4PocpbNyPOTX+hV2GdmsjKjsb/s
+2GL+aAEd4IlToyWPFqx9frNjlbwZMk7e/MR19JZCq8UfNWM9H0ZU3WxPWuort4vCmj9OqmYfFobG
+USaAUbqpHHFUxBZFhoorv9/Cq5vK9QBkumLj3vbBJs3K4avPk3cVdTI5OOks7mI2Pw3Aw6qLsfGQ
+3A0NFf4lfCsyjTlHBujWtdsF5ckULMs4ZUXrHbpmYKFCMPmid2XGlmwNR4JoroFj3IbQK6Z1FwHh
+Wg8FtyvT+mbKLwyzsN48Pwq5rMqO76fsB/PoVO0BP7BxkRaajrn1UYtfehOdwc4uNCUdLlG40liA
+lh1Oc168iADehd8pSr2sWvxSpV+xuS3dga8H9oTe17da/hyJBIM3Ixqq4YBzhEqz1WwbkU7YPNPT
+ToMbaLuZasZxWuBwbYt+kq+gZhwmiR2xTJcf7KnB4iEQL+vhDmmzf9B+hJJ5zk1x4LCNw23LD5kP
+tmZ9sGIqvUxuQHbOW4OJDX5dvRgXzAn2BiZmC3ortpYMQ7MHNxYv0oJ9aPWg7yJ2O4+s+9F6znE2
+GytHphq0uBN8QkY1YSZPY4710Snxv0qWkU/CYGWyAuCG8Q5wwfiusj79UQ6LXSzH11juEviKp8Ay
+nOTotV1w2bbLRlvK9tUDdwCx0Rjil6qawnAL/TxiBJIyCFqP7hzQHBSBNR8TFtAo2bjw2Z7kOAYd
+whQEhBGZxLvSbRceuFDxVdf2ksfhwD+vW594ACreqMN2acj8B04dA/JOkFOLt1lNm1Aq5NS/kpZ+
+t/Xf/mLx/zKq/8kK+Id//ff/CbOL/zZc/f+ghfh7uvoyuuBb/qALEIbuBUwpZYBa1ce//+foQjK6
+AA/geEt+qykZR/w5u3B+c5giSLBTwoUkYPmMNRR+6/jf/sUQv1FKn9NeHZdnA//7Z2YXf59c0D8z
+B2GwwvDCsoUP7IrJxl+CHRZodWpFOEy7qO9AvyOly3B3EfWASKMdsMKXpZg2M8h1mi9DW8MvVMV/
+GbgjeCv1r2vr+P1v/7K8AschcYq/3bIdQTrm319BbXgc2Z0zkm6FsAfqcKPDw5S1xrvtF+FrLJUV
+b3jUiVeJgTdl1K0iRvwQTpnk2xobykQDvm97g5VoSk2klr1w+PmXidTv1/p/nQt0fpVkGEB58DCD
+oT/6h1dpJiVdL4QhKh+zvO9Quz+ixkr3//3fwgrob78Nlz/gp8OvQwksF6zE8tv6y+cRJZHKhojp
+aKTaMF95Z2JzpTz3KwV4Rck1AktxzmBnP/TrByfQ4023cJ99X2UgA8446BTp/7Q1lAEm2mhB+9zU
+hGDpNcNYUNIR/Yt/CRpIi9swmGLnKvGj0XpwKrQ625AJL2fnFKT9MRKVDZ+6GuPm5MJdoIRq09na
+id6tXpjWQbYmDQE6mJPFNqPYltY44rzC33uWpVdm3bp3WsRMOfzUaMqLMeiMYdcm2YyRWGFp2/kN
+y++dOWZ5sAF0y2GlW4vj37FL/is6kUKDenZmf40oLc9uhzO3W/mlR25YN48mvYZAy6FOyie+5rks
+c+re3CWpcD1ZcXhwHSJlXmLlIFNFFdONGxc8TXJYsgrK1xol3HyMMhhQaKkcHqiJsgLUFUD9qZPy
+Oq72BvrRds22M0yOyumxsmvRZVdcsICn/NofACJQdNFxoEltAYIp67VII9jIBqE4zD/AB7AXoz41
+NxJd2WswF3G3TfMAB2Wip8m6imTFih1R+WytW292rxuAyy/JmOHPAVzbIQyeIx/t99Qpbs20wx0c
+Sk0pMrYBpv+i5VGws1ptts9lwATlyJLFShnFszNcN05q1s8RzJLuume4sTyRW+fR7drcYRyQGMEB
+a6PpHtFZ+PKow2IUNPduPb0Xc9kVj1z9td6Uvu8/1a1tVUcVomtcEyVCt00ESPMtO7s+QbRlhh4T
+StHufX8A6Yi5K2iuEkNqe8WOYzEK4orFmV+CGcIq5jjJbeEpt8WZPyYAllIBZiDzSrImKlEZOEwH
+BBhcPSkAVofiZ0v7YLKjzABSPo+RcIrnUBvFN6VnirETNjNIy0E5T26iJsRPGM7Y2+pssi4Ri2E2
+ZH7p34eiil9TS7pfZtGY7XGMayx3bqnHg2nPsXGtG9ft4XzHzauPbVfTaAzoyXDV3OdTlX4z6O2K
+Q42P5K7W2r0jjS/q1ok/tAi9RIu+QDB1Yj7gjQ+wDSduCZWFNTy0LDD3mlVogwg/dKjpq6CVhxnu
+MB+prwoU6F77kwILzWU7IW5cKNIg9Gr27MjaHXxkCsAq7Gfk6tcCtWe2EnKUHzjfDe7xlAcSWhGr
+cbb0sPqQph11covpe+f6k3B2DmOxfdcxBVzVhIOZ63qc8B6y3gvmNc1atWktx+r3TKyGN9hL4JBp
+WWa1ltnAB5hMOaHpgzHjcp1a+KVHUNXehPTdB52g6oWpVSejZrA9GWo8wX5C8JimpXfICpZua11o
+X6AzkkG4EstfhavKYp1Tgn511q3A2rCxR4tLEK1BjKtotpadHAhoYmLUE8Ds6ElGY/gzJlQTSFlX
+gPlPEKAyNersJ6+SrzlO4M/MbPEpJFRmSxUF7SU6072rSMHNQx3j6oNXj8k1z93U25BmNOt9aOsz
+I1yxQdWiAULWdhIwgl6Q4glYXibwaZ8+oliFOZ535Lfgc1xY5P2ZS64iCaO8g6ga7bIzuzyOFo45
+/jrvWZzp5l5StBfIf+nagzP/nAcYLHR55qLLKam+2lR131EvaEWNeMxO9gJTN4aZjuVMWB/tBbY+
+aP2FYeUuBGWIEuIXkT3HXtUGRgGExkPRE9TNS2WaJLQvEPeAR86blX/VtE73w4J591p8cJqArH0v
+4L/jze++p7ZlxNCcAfGlWRnP1kKNz4YuBiBfLDD5BGL9m14I80wUnAJcDtz5/oygz8Iegqy9kOnL
+Kc7zbZxG00dcqEv3zK9H5yoe0L3Hn13A3CuD9PeUnHn3ftJjI/Nnq3qtE4uBHpPj5rrj5oTFdcbl
+T7/Q+WeMPhaReFq7C13fTS1A+z6MEqD78JaxiXotlr06DjSD5YXRPyd0cZTfC7rfTuzyIfsF9F/Y
+/tEZ859rL38mwgRrbn8OAjCCJRSAdwqbILDrb/scGjAu+QHYcYkScM+xAuIcMZD7SuJaXZIHqnMI
+QXkOJCiWbILxHFPQGyQWZBBB5dryliAD+CkT0X9qCThAc0nYgb3kHiRFFLk4aQdu6vkcjVBHlqph
+SC6RCe0ctz/6wgyKlVwyFaAT1Bhul6SFMk3S296EJrCNzlEM+KuGF0aFyxHq98vQ0bWxSRRpHN2F
+5ziHwKsxe07glMpLFIUNK5POoxSs8jG9m+wZgMoE6g8I8BIV8b+Lz/9EJ6MTsP9SAC78s9+5Zr/z
+cZOP/j/+79/QZL++5Y/mwfzN9mgOAqpBhwrdpVr8HU3mnBG4ggUVObemEEtf8QeazIJaxio0oK5H
+jk0Q3V+aB/M3fpgpWYwuK0sA1v9M80Dg4t/LVaZhJitZVkeeTXBZsOxY/1quMoM2QLZwKEZ5nBAd
+4+CFnJlYVpva6szDr1owG6XzVAQUM6vQqSeCnDMPpZzBPvCpsx3FlIjcBSJT/cbIdwbA1RvPlbS0
+9BvRNxgxJpJFGC2D1k6Gzg5DlfXDKBGOHpJR2IjaO4pLNpBS3Qk/dKPNUDInBsBLltY+YQ2H0oG6
+9WeJ1+IHTJL5cfGOJNAEiokkN1/G97VlEppt+FPXQzIFF3YgaEGzqEz9rjn0KBAwsFo+BP7JM+H7
+pIm3NurKuS5Y1lLIUDVnK8+UhlpVVKtfCEGD787z6h6Ke0WdPCsjeKxL1c2P7KRbapw8svxDPxOG
+Q7xzVL7CwHOmFSZYNz/Fg2eh/MO2KLeFcNzpwrJyjseoq8lrMRlYAIjhfNwwvnd/GLOO3wfX78Lt
+KHzKTk26TLaGP5N0G6Yt7cvk1324tY2WHQfG4dpZx1Unn2wm+rf2VPX5QUu2BOB1akQPSlvjfdfp
+VmxKjvVihafbt9Zgn7IfKXBWJptQ89a+odgrhqbhARmIMmr8Crf+C+MVxjzKT8F7hk4cpZuS6zTn
+gU86yKoeB3mDoB24W6LD7jsvUgzzcMsygsCwjjzGiWPC2mVxC3MNrqZYtdLAaVA00r5JXSwW66QO
+LS4XN7NxOoxN9F1l4CRWXZFM4SYpB6B0tTW3r8puhvqSEY8ZH5C4A6BxDIexEZBYEEx5YMt7KqKa
+Z0Ljpv1aQjS5bnFSRNfQklO1p8Pq12lXe9EBeoB/x84n/zIDbX+DwYrY0Is4fA8GXDQbo0x6lhvs
+nJcFXt6vDREmDxIdNeT4FHE4OpXGumPiiwDcb90fI8iAcucjgQaJETUAvFy3xuklqCeHObtp7L7A
+iDTHT1hFoNyS3JR9zSTjIkLHT4aSWL2OOgV/gbbKEzsCQMTTNC0hxGGGrFIjYkS8Odf5pdVNLpdl
+BiBJadmre4obzzpwHTBn9vWyBwU7CFQvtviIVn0SINYtzAmXlFnIdtzGhR9jbZisqtsXBCHD1CpH
+6BolYVA3pW83/VVZyMlCNq5iHC+TpYkWipMcdTZWxsOQTKV35aO0qaSdnWgsBNfU4BsPQMBiYr+q
+DMB16EXqwx3i7maBpPVbFJbFXSUWf3Tkm/aN43SjPkRJh0w4SyydHQabC3VjtPPCXcnrZUIRjRhE
+Z7+p9C4vQlA6TVnqTYRlXO2zkZiUlWGPYMKczn/TSAI3udL6DQ18O18RWGUO635us7sROlx1aLhR
+OB8KWeOAM0z0dWna4tEqHPO5ZIUNt6aohuGijdoBjnTl2B+uIRjQ+36gj0HpYjtJWOc+0mnX7rpC
+43U7sVMFkN3nfCQm7B5g4C7CJBTDiX0pmZaX7BdBZK3cJmheLEPAO6Ch7tNdCdpMrL1GorlEucsa
+VeKA/InBHv5cDVU1W8Vj5DiIVlX4Iv0YIR/8CM451B1gC/rWU/0W594M7qMR0rzLfDQMxxp7RHVw
+0BBcIUBvWBFFE19euX7/bGSU8Nupy6IrB/uE3FZtWVw5SZ6n27Kci6euTmgMWgYL496l5cQ7Ikme
+mQbw4QYQSYvuMJ9f03yw3/M2L6ZNmIT5Vww1VW89NMrNqq3j6TJuMXfuHNWIt0q4QKisIFPPDntD
+bt2h7sx1bNkQ0lMEMm9THoUXCknsI3CD9CEl69tfjdriqsLIQiZZafTFBal7cb+eUQ4ZK1l6412E
+zNdc96nRX9mDX9eviZHHV5WvI+BGJu6/vXJSqqABB/a7m/JA2M5Bi2iRirOnv4ltdejgWHmg+PT4
+IAdumnXWkgi2ihMPM6qF2fOecVuTrQmyUe1Dr01nLy0+ZqBSLrcGIuVm2pLo3nxXHqo1icoMpmYV
+V7eRD59ni7bE7jaWzLA9LOMtwiJgtlyxmwsBfPczUSO88u61G+gguC88632ilfdWFKbi0fTD/NZz
+kfqzZGOMtBJz692YYjwZCDF4IzOoCCKNCyiVciiWDtzDLElva4rX3i38Fy0KAOsEJrBNQBcO9knD
+v7+NMAO1W6j1/WkoeiYdFZoc0vMicEfruZ9gPGHfG/0tkVGsiIeZDmM1EDosAcdV8o3rP8hPqQ7V
+HbE5k8k+FFbEZkjCiUNqnDADMZgp17KxynYvGpXG68FRNveyokdZd7FgZc0yotoQHFm0hMiN3ECI
+3eWPIGdEuK3d0cnXZumhmGeshJce1f9bhhg9o/ek8sfNisN2Z/V5hVCUWPsrxB84kBsGtC82VjTQ
+T67kk5qmeMHx+GGDQ7Imdpwbl4QrkAOAwT2A4gL3s2YvVXO9i4PXaiE2UVhggGyZNXR4zQcMg4Tj
+zY+VnnhwBrC2feDhRv3Mx+iSycdY5CU12s7ftG2GjXvMTPcH22HCM7wYVEtavXP0NzwanKT/aoNy
+8DhUcvWIjagv1o1l13Dh50CbmG4Rf2+y3mouEPGnSO8H6UQ7sG8MfpIgDB4FgkqW0djLWFY6nmmu
+EbTP10HtVB0tttG88wwnH9ORwr9LIEo122xeCqE+KgJjg5+GpW2Jevhl1g5nDWOzqd965SBRMNUs
+pFlWjhjBkcdAyuAwh9tmj7nxVk1Mv9bVksKKYgZ2GHyjSIFeVjWq7yAnY4y1bwGTlsh1rMxSwT5d
+pW3cA6pyl7kNSQPprRlE7Y7NfF5vhhHh7Y77RektrzxFtyEHDpmhTlD2O3EovlRIZCeP2Iw9EPBt
+6gLb67qXODbU6xCj/s1Lt8NkJXvzUaGqH9cukOl607hNfz1a7PJ4OxnJ2Hixuwty5plEoTkyj4bf
+d3eFwEG0GVNl3kexriqEdcT/bVrRZChTHcURaSENu6sz0zZXAneVf+G2ddCtFZuzmlV2TT3lW1n1
+yeadwnQiiAYcVOmSghJb1cx+OhXDHXt4baxr6tpo44W4hRipEQUzNUaPgczE0rDBjC12FujuYC0s
+HWNQdGcL3AwqLZrcoZbrOUqgGJlu6V4zpqHJGznwebzUKWozzMfkzmCgwMwh8vfZ4LClspogh5MT
+AMpI53hK64ITaeVnkfk5GZ4AFjS10QM+NVpQxBD1vWJCFW0z1BSEbjG8k2vbyec9aIBU7AidYloV
+DH7kXfhq0pdmngPDVU1l7THV2mB/YKjgwrUkA7KuWhRSs71cLgnz2y+bI+WjGIbB2dvC7A0ifhbL
+AFOcksskLLJvdEmSjHbiND2ycfvmCnpX4R3Yu6XUjQPGfQRnDGRCsE3e1vJczvF4xnK+xkDr7Mc+
+yUOsZtJjlyYUekWjZ1++TmPZHFERpiS8gYw+Gu2g2+1sjhxRsdX4P4ak680djh9ZsKe0zDfTy5AW
+IIlDFGL6Xfwe+13U7STlbr4TqNiYDUJpsPbAZ6BJuAlrX17xzN7Dg2z3Gatc/FSuRY3vwj1q6SXM
+KNwGNQg40g9CHOh+SLroavSGxoLDGtQ/TNyCGvIkY9pNNjQF5Ei/7xv6nrL/9DKfRqg3zExBjRbF
+p2xtGzs2scFPVbksH0dPe0i4zJbrL3YKm1fSM1w8CS69Fn4d4C9iI5vy5FPz4arP2di6OfaI5RAZ
+uRJwUHFzGXHLj+XIafdW1Hnuqqr8BcdA7i5PxKRx7Tu2BRMf5tAZOxn25d5RlomVPOnS3f9OFf5x
+qoB8xAqWvdC//iFZ/k9zhfuq/P6P/1cmf5NU//l9f4iqg9881lSe5yPQs/hH9Na/Dxdc9zdmBMwV
+TBZfkrUc/+mP4YL3WwBmjj0YW03XNs9byz9XkzYodcow9lcsFOl2xT8zXRCW+Q/jBSTaDCtcl6WY
+xf9ReP99vOAjpyhn28o2jNN++HVaHd2k7o86sRcX3AAGoyMQGPB+cOEQ9bYtBqK2oRX0MC0D8VY2
+dfdmqr6sNqiiMSk7MYnQZSxPM+xEMGiDPe1q4wgCoUAF1GdXAyW5uQoMujaIpNYhcBNOxV7b9nNi
+UfqzaQs+eJ4MW8K07De0rPXOi3R1TNpm2gM8Cl9T3gk2h8iUi4UM55a0FJMGWXLQmjihhrH031u3
+wQ6begC+7NzfMy4siQoHUfJR9ELfhk2p3BX01vSdmbreGRTDL4lraVw1PhUJ7x2RERkvM7CJaMC+
+FAq0zZnwrvtSAgUM/OyzxiVNOqepX+3G15iicZuAhDXr7USjDJhiPhFYE6FSy6J7kabHkezMNXSY
+4hPM9iAPsNHVJ31w0SOrKL3XARmYXiWmumIDpPZDVLII6/mtxHKxv3QEqOxZF9vy04R//T27kXsd
+NLQR2zGggoKcrNRL3xfVW2kw/8kBf+/EyJMM7a/auVAuKQZNedeYvt57XZggbqo74tv9DBsWmwzS
+idsrtxrCXWwx+VpRQcU/M3Y234QKGc88mkGVE5S2YoKwaJrD9IbHI+Zdz1CHwgV7UVTsnrrYjU9Q
+a25wPT/gszyNDNptnHZtkqt9WcJlQ1TrrKDlNNvGS/sXchzI00AU1PBwCRpgnyX9J2onVKyy59da
+j3I+lbq8kxn/0dBAO1JsbJGXkTbJ1YVgKCt3rYNoP1wLQ334uoZwUZxCpcSd3YivlgHRPnfSe1JE
+mn3QeWKvwRdvJ0WWN+zcdMsolsxs18v5AV62KZc47QGXdA8ztSn2FYwJRgt5JPYeFpidiscWkwsK
+N16H7wv4EDG5mgkQlgtMg9YiVT8GspFXpVETRJgEwQu/jOwVS31xR8qncYzZym4BTgx8WEiGlyUD
+PTw2c58rYMDcE1dF8WrqqIOWg/ppainbbSTot6kzhMc6isYnq2i8vWSlcB3lefBsInjRKzakw7Vb
+JdaJeE/jeS6n7joQKcOVdHp3iw48bxDjrI96Zb823Eq7enKsGwISgS+IOm7ISvTVMWB3++aEwxa8
+3SbuyNRa09YGrEdd706a1nQBViakliqaY10O443lGPWrVTaPk2tZt53fD1ZNhoyjjMcWo/3k7Mwu
+Si/Awts43JfdNyNPUsfxDJyS8cnowhcDlt1bNQI6AvCvdwCvwY5JXGSOu3CsEngt7Nu4ZRf00xnB
+ZlYtiKNfLKSIL/TRsH2Y4dnw1UtAvhQXu4ys4juFQ/rSJ28UThZfqK1q2ZsHkJ8ypG2MQdLafsvO
+uK2F+HSetilivXZY5SGFtcDIzAgcVcaWDZKS0D8It4bNtVjrqgzkhGYGg6x4+WaaRJIAGEOwdZSR
+V1+nXhycPJ1gdivGHDyw46bhJW2a0SJ6gMq30jntBjom42dWYBJLcLQ8wZfsDh0KDWUxjwHLe5jh
+3p3G1B4QTHnGHSKz/pApXTAPgVbMtJTJmwa+5JWI9te4OKHHmOAFoCXlxQM7XDhHYUbX7WbF8ICF
+PNk1ZhignZuy5nIe4mSfjiZaPU95WyTD3QY5JEuvcohvvNT5TEsSnTJUcXt/jotvA/nue56gm92o
+qKWpxke8EbxhgKlJrW9qF7Uol4SLVLZJqOFrNX+gFrziRnIOSTylt2IQ3s4IRb77xd5DY3efFeDf
+6LZh451/9xVZCVkhF60bCyXC2Vp+x9B2RtLLgvSIWTsj/K23om+/ddA4gBPjyLTmyQJJBIgGxDsK
+ouvIcnBYhACSoLNiXzxms+ZngkYtN07A5xv1BYgtEFysgpmoPzrMhNh3E3ZL6w64TmvbYkuouYRm
+Yz6oVmGG05PzhEpjccaWOBg9UKpPBGvUp5GxyAEFG17EWNakt/ITbVk0Jxyu8T2BBQj45hqXnOeh
+pzPbCRWfo6HcYSlaHB6aqylqmvgFYyKUE7Poi/2vOyLTNF6OmkpspDZvyZwXwJkNis9MIZ9FXs/b
+//USKUUgqFV9+5pVGCpT9oLfGGJ4TXh62GYtHDQzR8iA+sXGt6cq03nqvc6oNwjf/Q8wCuUJ1aLz
+ZCbcqVz4FgJDXRSEzZ7vBF2r8VM38MuqCMpEZsXMoc9AR9OEmRBxTD36xFKDnkqGcE8IHxaWNuYP
+80V9mWlwKGCilu8iUAA4RgPinps+RV5XeYNxgY+T98lK+hHmC99RE6vF2xWqaDvkfRx5D2WRVGu3
+r8y3gcxlEAXCgMQ0SpswL6KUtxauAcbBBV+vmwKWVmsyOFsNJQvXXUvA2AZvHEAshTzoorCYea4d
+xPyXIsCC7pG9gAMe3wUP5UTvLAJmb91YIByMi9jYju2INSjl93RhQ6ynUeuN+YoQlPlBAkliu0if
+sXht1KF24lisvIiwLqL2zPeZbuU0IcUm9mPqT+Zsw7myvQGxaph5d1DJWpKHCbh7ldjAFyeaUzGF
+Myv96sLUfPZiOul2SgyTKa82mmM+e96xtY3kpgfw6W7rxu7eFD0MiC0gdSfLs2cC5HRaIladvf4+
+0Gx694U2UFwxxtxEfNlGdAzwVkZlBz88e9KfopuCU7+QvJhpvo1xO98mw4BzWIVpsc75aF6aGde3
+TFPvXseWmQLZjON9W6XRMeSuo6RKTPuiK4R/VRfEN27r1BJy69t9uPJ8PzzSqdbGAcleetk7VkvU
+bWMB7eoce5khtXKPyTl/HqZArC0Z91dC1f4piqNwj4Ct7jC09QSGVzksLAK+qi2dGbqNvCfzIuU5
+KdI6+JzTSOEUKtrghDOapUeX9cDiqgG98Y5xtjoJ3eobbvrxIeyt+nkgII44VmukiB0xlKURx88G
+UwWs/pa8EGsqjVNPUCT6Ap7T17OcqfpmZz4hnPJvueamq2nEaiyqwGdYzfgJY5hllgUwd7M6gVYy
+n3s4cHrF24MrwspjiU3hqer07A2iYYj2KSAnhjdFTgi1MwXNt+uM0NWHjCTm3q4VzwyRXolyiedA
+ZkWlazpUztsKz+AT/xoR85jbr7Sxrdog7PW+oXAhAUcd578gC3MfuTzdq8armGWRCrZH9+yRNU7s
+izbF9NCT+L3Emg/10db/n73z2K0bW7Pwqxh3TmNzMw/6An2ycnTZ1oSQLBUzN3N6m0aP71PUi/VH
+yaqSZFsVVEDfBloz2/JhOOQO/7/Wt8LiI0kd7k8amrPbeXfhznh+rHoi1ZlKFPWCpTX54Q3uYLav
+NIIAtptVWlwWBsKMfVpT2lHrRtks9a3rG3/Ik8Mx1Z1lV2p8a3jkbjqDb3JCM3OUwpFwN5AjSuOm
+M31tv2E0WxpTJfd0w3Q202B7Gxcs0BG1XOfO0ecwewLXMcPkfAd537GbbpNhaQrXO/ct09qBJPJO
+enoVjJlmvG+YLmtMVzAfZD3+e1lkGW7A3hGnpR0Q14E9sdoFLdVds7fTYwcsrkQoj+U6OrTS4Lrj
+sw55uOydl/gNO/LG2zqxQqk3JTD4KGo0y4CpfhZGBFvYztFSZ7V4oGBE4hvXtVOf1cByKlzChHSM
+l0Jv+jNdymw3it7dywhRib32E7e+Yg5V6VFmO1SZcQwkK0Z5bd26qbMfNbm+owR2I7UsOAM6gHJN
+77I9ZCTEp4WDc9bDl8GDKUx42YYsDv2QWkrVq34dOiwIUysn3C3zh4vJHxHCpf5wYDtu9qHWTbnS
+S9GeAyAoadcwXrMkphKqPH/CMUKnw2/c7pAWKhBpFdz0s45QRNJFdAqHiYhMIz2OQrNihStR9/k+
+nc+EbSNqpCoQK1bSA1JDNhGNHH1mKEmGEmTkXTpp+VqIeNiVsq9PLLxIq8nJp9uyquRO94J+30Kl
+tXHtVmOFhG00QlXy87yxCymMD4oXpOg/lv2E38Ku9+wC224mQSwuCmMMrhF7cTsHxqzKF96JhQXB
+AOedVXspRcIDEUbNjgGhgcnuw3TrJi8qthJn7HigPNO7SiFroh+UVPC7Ps+KbVNr4U2czPZ2Ij9b
+NhGzkN8oYO+SMg39ic5Odzc1E+EYhufgfPHBI81PojnsM5YYOwrv5rknKVDnuotQ1DEKsJdp4F1q
+rgAxVHmDOsxd3D4rp/HcPYhaAN1zYCo/1Y1j3lVFO4P+u6HdFtJQ60F47n4q6ZItvbgzh03l6hLE
+gCzEXeuFsl0yOo9q0zDaGjAJ3OGK2mpyrZy+Y5DLuEHVyHy2KDt45rpSw1FXWnIf34b2oVMUBVr6
+ZucmjQ6WhZiVIpLTYv+4a/zyGCdtsJY077YiAaC2jqRfk/6DDY9kXCDOVyMe6M+BGrMLKvDxPsYt
+/8LT6ZwuaF0YP4WoyhI+T1irsQKGuKRYSMM6IHtmk3lle6jJyF0P9GIrvJmcwcLGmHpap23jspgc
+1ZWfWGR20lkIqGIE8RnsTRIcY92FOzhigDvs3cm9JP7Av8IhiE8atslK6k5x4rHf2+VlelGnln6Q
+h0iSIq+n8We5sAoKIgxpgqfloU+zge65NwTo7KymvOyBL6wiEiDJd6c+uQlbUsZp4/vjrkoFwquE
+YunJYPTDWawJV18Q+BVcqNBPLrFqd7cD43IGin+IBfpB8OpMHhoxIlOR5J8YSDiRidmENgyaj40K
+cDwi9FRZx2Y0GW5IEwfF7rQUDwbgoHuEo+zzthbhWvOUFyxDWw7VqmwLccsiu9qZJWjOghU8OydL
+RigLgqE5C2pfsG7RffkTDaLwqOscbTXQ/d3XPYi4xCvuidaiRZQWA2l3VmlueMh0KH8SSDfvVXU6
+UPraFlUTnOr4iaOlr+cmb6DV3kRw9PZYchug0igO0913+/IYzMuwsY2oumm1Bs9R7Lt3oQqJ0hkx
+MJ04ImXu7KpIP2bXVZE8ChwTallrRzlUUd0Zl4mZRwdDb3hbIiDTtSAwAJhHwaRZeAc0ISSNDLPJ
+z4NKlKTBmhY99oqNC+EK/ToJlXauTPqCohmIKqLLf0BRaVz0GUCsLLhk/DprNIw+GrA3C0vhvo0R
+fDXGo7uSkR3cZnX6YZTjKtQTcYQ7t1zhiqmOWrMyPveRL6HRY0tqG99ehKV13tfhnlZgK0NXst8x
+ontMPJoMzyYxbjINnj+ly37QjwIVnrBvpguaEFEH3Qf+3Z4f0eb2bfNjiH9qEvRakGzPBepN7PWf
+C985IFOCVgtv7BbcnrvMw3E8kjXyvcKkMBHXUKkBRVUymbaJJaI1Ua/jtKqQeFSBZ2NUdupjq1Hj
+GryduZeaTfSxcrPySi9I3O0xLR3Vtu/TtgnQO/tGZe4myNABrNdO/OzJsTjmqWWUMhGNd2EwfZD0
+lvdbLQegpIdOe4Y/Nr9w6bKsSwLOFslkJQtlTpdTpx84JC0t87xjG6YTiTalvXmAwfnTFLkZ/gNt
+QG3Qkt1QTAQYmnGcHA31xLo1d2iRZ6jJq4rNaGg4kl098uFmZm6TqN3tR13vrzzkF802xKF5rim9
+vaV+q46NsBi2Q9hXW4WLf5OgG1+yHTQOnNQfjwojqI+RH2AfNd3Ouag6uz1IQgdnlBicLw6JI1CO
+pQ6aHaqZrUCu0ZFLgfcW0cYzJ/tGI9Yc6bVKEc5Ii/6ciPer0GSdXQuP9W9ifzTMUK7Hrpv20jy0
+NyY+qxxlTpOd1VasH5uF1q51WRTrrPfc3TjazQfNH4xNSw7yl2wAV5SVo3cywF9Asp7Q6mR3dycG
+A9VGnfT1UVpgRG5A4e9brrIOeyIoqBdk2bBNyW79LPQ8Wo+JxXZ5HGfcLnoAeL9Y2KtYJJ9pQKUb
++O/Baa5B4GdLkq71KMA0oHr/C0wL7ZSSp7FWeGHPAAAZp9DXyo3NKnWX+hqx5DZeNKx/yb4fmZ8V
+sOQtWgI0WEMf3sVB5YLhdMdzlGY8SIRhU1+NOuO6dLlzg1H4ewS4JNRPRHURjLZGvEvCCSkCRvR4
+LI7cgtZ5ODk0ZhjPDrVQg4Sem+24wjoEMt7Hv6mEV52kUit496ceZAJeYvgdQTypFQ3eYol3kvg7
+UpV1CnQjwYv6HA6SlAQ8sKIin1B2K3juZJKpbLqJabPuxSiXjvBjil08lNpBZIzhWtq5WNMQ6w/G
+Kej3KDPXBJCwes2AMO3gpk5XA2VahrEqP5/monNbjMO6FHF16aGW2Cg32LJFjw9gRczxOJ6xRZjR
+8uziXGH92aF61lruCDGbTuMsJSCWfacoKC7mqoF4OzgfxmoCgZeFASRMEwAtIUFzWhTJjx0zIays
+wcsXTWAEH4m4dC9sDQfdAnCm2ijHiU/g/YMiwJveAxrp5V6Ov7L6f6Vq821PyRSW86rR7fS6us6f
+O9084+v/epSruu+FtFxPGJZAdvoU04PXzdYdbFM0j9CxWvZTuap8b+l4nlzXFPS2hAE957GjJO33
+xPKiZHU9Q+cXHOfPdJQs40VDybQFpCB0sWhD8eJ57gu9KgK2UBelBk5aOWymLCIbxjW8Np5JWUnK
+3Jqt7Zn2oDB6kR8F66Fpka06jZtcm4ND55U3lpZ2WkZwNemgEoOE1b3ymbgFvRQ3m/lmBIQHe7YP
+i34Zu6rUF/ZYk2OXp/H4hR5RMyN1kdRXkszOpRbRt16iy0P8ORqZOLG0QD+gI9KSouGbM8cAulGz
+DnrSrPHl1oTJRZ5TnxmRlBUAB1xX7BnYxzHusN5kxSDMj56dIYEX0QxxzuxPk2iYwQiV9XexXdm3
+DZEvZ3OA9TXR62g0RhwunEQVcQ8gbcAdTSJ7ODP7ZqJIoQQL3sjV2lnT43BplbA6lokVe/uRwLtu
+VaEQR1VWdVa1VEZX10tbm6LrMSzoPiS+jzUmDBEHbluoGrTgs8m7xhpMo19mYT6zEwYWmq3VVayI
+Rzit+A7GXeCMLHndIO0J5POz+lOeZw3RS7Xn7KGYTS5wa9SXVJGiaoVYQaJRM9VhoRqAReh7TZBs
+Qe3cKPJeP6HnYYHrUXhkG1XwrVc2IhyQ5U5zALkuPwr6yPlpcvQJZUUm05M6ZUpZlkXeXzlmgfMt
+m1iSgPWIT/tSsf3xVHkedaMgZzHqICDpXpg1E4KUBHe1l6j+UiNy7pYjWohHjMj6kOYx+V6dP3Xu
+qm9TfdyUYYOSrmSzfoN9oryjsRBRIEf7CmJ9wh/mEO8eE9A6eCWUWwi+Y71kWG4vSaW2nIWqPKtf
+zYWBn2BJmPVeFHuw8ZBSfnZGQLe4OPzrCnZRBN4Gcd8mRXZ2biPdu6a/P3wO1cjWCZlKd4z0IzuO
+zTmnPHRLXwI4nnysLBBP4K75hMkuplz1rPx117lhWUzGkaLt46+SsUw1Hj7XPRQiS8go0KfphJ1N
+e0xOHlY4V9lXuvAoD9r0Cw8FScQHeFFZOEcpGqKphns94qLCV58VVFoko/6ZbiOWW7QaqNHFGDXW
+hW268BjMxOs28dTrAROjqjfmFHjnEVyYHUWjATdQ4W3Z1WWEn7rIcBmt8nopWL6Ciujx69MmSbpz
+jchwuCyuqK9q0Vf2Wk0D7T0N0zrHdNj/USqHkAWFU68IrAn6L27p1j7awBkfTPvWXKf60I+bCa6R
+taiQv0CbVZCrWb6qxN22VkaM4RB3k1yhw4HV7QftFcpUUolF0RsoOX3KKQuIA8jnXSNVIDsS0dxi
+sqtzUPIIUouWL5EMANyJG4vyFnv/dkq6LavzcGLXMRqHg6PyszgJiVSlB0qUNoRRBFZ4WK8NviI6
+lqjedJSmlEFzvUDAU/UI3pfY+cimNw1m2BWFQh6lKqbAC4imj61Vgm8Rl39eBvbS8+3ws6a8+opI
+FfajXZzftE1l2cCvIBWwBqRQgrBRA5dKR9tGIxXVzkVG/gMrYUNWBzFgJgKD3QyWl9601HtckpqX
+iO1phtaJYX2OIwUeHOquVs2y32bDbs4E8xBCT9vZTq9/iGIL9J+YmrGBSdnbP2VgSE5LU5Co1npu
+dQRAOY5WsEjTj4ibNYZyCOQ/gzrLWF+QKERB10C5pXBORuuy6ght6Aot/AKgpxIbnHRwLMdySCCq
+lVq9lAQxEHXpJJB1jWAE8DMEs5RJYJhaILc3z/3SxWNroZe7pYftXXQyRc/U1xWB6xlGMUYzCbGX
+oY5nQkhj0BHs9eYe1xpYLKkjBjxQkfGEmFlA/J1ka3wc9Lhl+29RzVoSPUCOiKMP8aeiJ6F9Ybaw
+vaiSgTlAMNrfiZyeh4qJbSdKSodaKtq+hHYv2CMGowW5IWAZPMGUE0QgoKKbmxkhzBY4riUMhaCa
+aZszUcvGNWjDeAjae7JYJtDOBWY43ASGRjvJVuUFYszQBm+vwwzvLJeMQuEwRi+g9OJm0tqm+Fg3
+Ifo/QoVm+X8C02ANVz09ZzjuzP1cT0W2DUaDZ5skiWNvYGG5CjzaVTFsDoN0FwfIt1n4UbmlPkIF
+uoNRehulpX3FypqkyLIFsLIIJGkvG+UNMtmnZat/8CxNmAfTRCDAjucDhinB04UkDknnwhRyzoaV
+Mb39vdqtaM3VUeJN7Fda80PAYpZ6Rw7WfQ+pYT/tkkan09Xw2K4oz5GSrgpebZh3eU3BunFm9Dn6
+LhiXeV9CpHCGck/0SUlNLK0TgiZNUJc7RcWwZ2GPrv2CaoV/7jM49QtDmFZ/AscNi2voqOzK7/Qx
+Xo2NwvieZmUQb0RU05+J/MbeYeqmqiJGj3KI1fgTpAy99h2SJ3T2HebUkgg5KiM+bwujJogXJHGM
+YQvMGeU2SDOrCb+Ku457h41NBDmVyIK6tKuVxPZbroMmGup1BSU038vNQbYbYeuTt6BrC92bnU/X
+LEZwZTqRdhbBepbR8Psh0O0vaL4LDda4ocK1QeXG5dE0xgvHoaq3Dwa5bbeRYI6qMqPyd1mSE7KK
+rEFcYgHUkbmWNO3Y5/VAyQLqCphEYL9RTqeaPTYivemrwb/0KcDRvQ08mkrj0AO0HXqH3EhvLA9U
+VBqfaQ3PIcHCMz/DHaaQXjW6ty1ZLOAPSOI821EP8s/xsxYdVRBZByto+4R66FOpE2uTlLx61ITT
+JYHmBAgAHmcAdNlqn9aAD1M4ZoZPzuGc5DvL3OUiKulhLA0kjx8E5bKbFHYvaQKpk9tLkMlutfSr
+QZ3CbqN9q/oEo4Qu6zDZKCOzL5jJWMw1tXROQ98iBbl0Ic4h6yV067hwhLoc4hTPhRvYAPhknZJi
+VZDPh9/FEOWwkpglUKcEZbO2M0K81inOjZM09LtPZt4G8N5VCMleG5xb30iQ0Nay4kFRpqVpNA+S
+BqIjMVKQTqaeHPMQA8YHRCqC4QCceoy+fVSfOxwOhEfEOdP9ODF703EWBICAnjGirRM5GC6MZAg/
+uj5ESfh/k80Ag2uIoGmSGnu2kDjUl5UsKehqHiU11olT5i6LzjdWsd0nF3YdNxR/25Seg5XrVb+K
+Bd4nipFsC9FkQepjqpYM92lbB1RTmSjsjZ6E2QedPHeDJx2c2v7QZKP+sNf7IYwCXdsTFgWoDaxX
+lqXPljZPIBB5QV8A+0S/1RzxQve1tdIRXG911X1VKf7wKPqMA/0NefF4GKRzbHhcyer9uawtbwin
+i2iGzzaOXeNRh+8C+iSKdO9ladfiuDTbbBOWDnigwR/QP+jeGcZa8/SJKvA7UAsAI6+ex3w7nsAm
+TLRhDUogqv7Ql1FEO9XWMebX0qGkyCCJ2sgg8yYD/mz1Ili/fvTv3Wzb0T0X96Lp0op7fnR7MpzR
+ypj3W8+L1g06OBritXqQhP7wZs9f2ct7/fQoL9CslYqAhjhttHIDOtlWaY9rEbTdRlG3Wb1+QXI+
+4xfHgpxho4t0DCSS1osrIvvFD1HWRSsKQDzc7cArz4hZJXI/UkZ51UJb0/cUGNUrijTDqm+gqDmp
+yvRt0uvmUUFCqbOQfkLhCJ7UTp+kdtdmunFVqIS1r8ZajAT02PEwZDAW/dmnnyW1YJBnMeI683b7
++RcSdx2ujdgjqUciz7PciHZnhKvz9bv0zdc+HwWcr2053CfkU8+PQqOHHq2rxavClLxerpFtkBRa
+i9eP8s3XzlEkgBzJ6sUiUeDFox3QMBmRPcYrrSNbNQyFuYkoJu4GXwwHrx9qPuFn3zqHsngvDFc4
+gl3XXHN48haxehZCRFGyKusm+DLhPL3EL1BuSkhhQPOUth94dH5eP+j3rs9yDWOGxczHf3F9lM0s
+O4BXu8KGU+ICoEpby5ysGY1s5T9/KNuAxOHZ0jKR/T6/PovCMfUGHot+MpoTeCjZUnUuaasJkPHX
+D/Xts4GLmFF4Fh5T8zFfPBtiKqOxIAF6VfST2np1+nNl2PnvjDvffl88D7rJk84CfH5Gnl9PbZDJ
+Ys4cwsJ0xg8tezakL2Z46Gp5TZJeQZb8BDTnd76w713a06O+uDTfHpEthX60MvRu2uFXabaq7uTu
+9Rs4v6LPn0Ws2FCKqKMh6GYie35t1jDz9ag10LFqAaskLZsaB9NCZhbygJA3nzpO7xs7M2x81OO/
+SsxPHw7yY0ISk5rOoV2UCDCp2My/HD2GqS40bRiY1GwbxE4rk8OkYQv8F46Cvhzn+YzG0l9eYNyy
+zgKGtnJk120MxsWNPm8mXz/KtzM0F+MxEiI5x0JnzTb+p++0ckhrZNdKmJ5iJQtkVAUOayiMRMh5
+JbFrhsKuiU8Ij1JNEAUDNCJFGnlxQkMHh175O2c0P5Qvv1gu26B2yWSJd+L5CaG1NssSPcjKn0qT
+kIxyOsutKF3hR0X07LWd9ztP0nfeEimEp5uGJQX+jhdzGS0VU+ucPp5r9wAcG52ugqMpdyc8h/15
+XLiHKDDr7Hdezm/HNYchW9BClryfungxrjWahRWx7OJVQJVpY+XxRCcRTfuCeq20f+dhul9ovbir
+khEAsThDAvrpF4sDD5eS42HzWSmnBblEABRSy1q7KC3hrDokJgElN53oiFrJAQ7w5B3z5CvwNOxh
+tzD4/A21Kn97//T9nwTrfT3p2WKyZl3ajGftXTWe39Vt2jzAAIM7Nf/rKQC45lL9tV966mT59oO+
+MjMux+LuP/5xfcteACD1Nz0MyfvKaPDrkPXrSd2f8WufkV5zYe0tH65Jh2QAJp6Z4v/w8493KbvQ
+x3833fcWAwyPqMEkxQ/vIUd8cpe+Pf2Hm/X6Jf6R33ntEu7uv5sZqDfjB998G3TvPWFLNreBaXL+
+4cV4dhuM98ARbH7nf/k2fFEtAbM8j0BA82cglT94D158wJNHQQe+cv8zu5KeXrxlvGdk5MeZFyr8
+PBzq3+gZkJ4r+cbe+CoY7y0DpAsz4MNlvnwG7Pc00bBmMW7e/7AW+fd6FeRsbXvrbTDEe1YBrBS5
+vGdPgf5esvBm2c+eaf7593sKoIc+fCcPm+W/NiDK9/NujRFAfv2an98G03jPQomElYdX4k8NiH/g
+jfl1illCC7m9n1yiOxgB385BP/qFx3H323//Op7eD5q/MVTvf2+eah4O/TCwzn/+57OZ537If/KP
+j1PA0//+9fq+PfJ3z+nxL3fRXXVdfQnH+6sdv57lAzDqP79Ud09HObJrHv/43dnx1xHg1Q9NrwN1
+XT9+0Hw/2LHy5Px2ed9Mu3/sg7PrSeUvPtnU/4ZTXlyHz82tD0v0t57w5u6We5+++97ywtNnMcFb
+j7Cui1/+RaSHendxjY7s8QMf7rk547XeeoStin75r+dfprznB7/1g49mAUj4y38/O2ksu3/HSR9d
+c0cwW+DCfXfLvWnTxxsx3xlWW3Pi09sv4NeDPH7Yw6czjT/+xV9/i9DHPFfHSEu/50Dfr8ze9LnX
+v/zr5vrxDO9Pmc3R3/B+nt5V+XV20355/pWi0vkb7vZ5xFd5927/Or+LqucHeJiX3vp1zgfY8khy
+EB6ZY1U1z4bGefJn8/j3HuXlg/mwwHjrMeah4Prdkk0USRTPv+iHPc2bD8Bb++70GrLN4w25f4oe
+Volv/nAiFKLi2b1nUYT1/833/lJ94c6gxHj8qPmsDYOE+ce/+Ouv1Y+57W98X4/4Cut3W+aR6Pl5
+P+zL3nq3T3+IjHzjeZ//OITvzZ/8Ko3ijZ/+qi7xjZ+9vHs5qHuGPVdWf+/5+97K79cqwbfrwcfd
+//f+2/O17vwbX1JO65//AwAA//8=</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -5695,2064 +5771,2096 @@
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HzZctvKluWvOPzc8EnkgAQq6tZDAhxlavakF4Rsy5iHxAz8Tj33V9SP9YJ8z7kkxSuWbkc/dMkh
-iySGjdzD2mPy338M//YjfXqs3g1Zmtf/9mP42/uwacp/++OP+kf4lD3WH7LoR1XUxa/mw48i+6P4
-9Sv68fTHz+qxj/LgD0pM/seP8LFqnob3//HvuFvwVHwsfjw2UZHftE/VePtUt2lTv3Ls5KF3P4o2
-b+bLA9zpb+9V9ThtPr5/9/gzi3Ivqpsq+tGYf3t/d/3+3VPeRM14P5ZPf3t/cPz9uz+Ob/7iQd6l
-eNam/YlrDco+CMYcy7Ft8vxjvn+XFnnw53FufbCobVs2cX7/2H8Sv3zMcIO7//rP4t31Y5sWf35+
-6qGeH+nx58/qqa6xnue/h9ceLOL3Gk+wI0rfv4vqwv3NKLeYl6Bun9f8x6Eg/uPfjz4AF44+2ZPV
-McvOHfrvimq3eo0rbxSV6XxwTNvi0L/TomIfHCYsnMN+H2d/Ev8tql2UP9bvVk/VY1T/eeS/L6zD
-q4/ENa/zf4C47tzX+PJGcVH5QTiODXHhz/PPkWXZHwQ3bUrEaXHdPebN4zv3sXmsILjXHuyfWNfR
-9Ucim9f6P0Bkt3evceaNImPkA2GOoA5Abh8EhfmBmpbDcPC3ZdE/if62rNuoeLeqHvOfT+9+Fu/u
-WqDUPwfo09I6cYsjgc0r/Z8gsO1rzHmjwCj94JDZc5n0tI2xD6ZjSebQ33Ij7E/i/xAchLZ9zJ+i
-6l/wYLPU9q8/FhnW+v+ZyGYPu6+7B4//1uDCJB/Y8w+BwRwYFPvwWyLSOmlQc+jz+pOctqI/rzt4
-6t+R1P+70OGfhxV/RV4eUHzxHLLtRRavH/0zJDm69EA4B+r2p9w2P//2ngpKgGF/hYLzTf5+5W/F
-v36sHv/rf3//y63sXfT0WDcIDBn/IB2OUIJRSi1hUfH+Xf/0+5D9QVrcsWxbUiIJMyHdvKiaEJdZ
-Hwi1uSSASmZJSwo8Rl20z8fsD4xQRzicU5PZljSdv+Ln6yIdgyL/iyV/f/8ub7PrIsqb+m/vmU3e
-vyt/nzc/Lp6AculI26Ymoh7JBcfxH4+3CNJxuvm/En+SUZ7qVKU6rD6XZho/VGYb3PO296VyksZo
-NiaR/ueiJNbPIA3G+4zGMlKs9JuLoByKX7LMg+1UNmG9JLE0R5dzs0oUkbUMPd/3J67GcpKlSpiT
-pm43UFs1aZtc28bQci8snGFQsqyi70NeBInbt/kgFKmrIlw0vplNHhl9/S3Lq+BbbaWx43YypZlK
-6iFu3JT5rfbqoqh6z2dJetkXdJxU3kYZd3WV1KlXxsZYKruojcwlcWhO226Q+aekFG2nhGVrx+3Z
-JD7ZdRvXSiZEEMW6ltyyabRNlfIy/xglwRRejvBwiSeHiD6QYEr1mnGeExVyI70e06ivlrXv59Zi
-ogNda93nqWuQKC1VlVdtfmn3jb4jvmlPnsEH+sOxM+eLIUp9Z/glGzw/m5JWjY1ZXzbcrvgdIzaf
-VjojCVF1b/uDygybLQMjSayNZbbTNSVF/y2juqzUlGtrx5oienQ07bVixB87j3eQzLasC/6p6JMx
-8rRMskhZVVP3ntMlrb9iMksMt63toVMBy8G32CmzS9Lk0vKcwE+9IZ/IovDr0VR1avFvkWhDA+x2
-Mkf1iZNOriChEXqWGQyT6096MFQfRGapDJ6b9wWPplhJFlS51zesumlZZhOVTgPVbtAHrf25LIIg
-AzFa/CrzSofruDLM0HVyYn3lpmjaDQ367FuSNi1TaRU5m2E0h8DtptH/YhklbVVnmEmzYFlrV8rp
-xlCupDHWsWcHNIbapX7Su34uQq4Ko0hMN6oH/8sYBCJXXVwHzBVpaXySTR3d+FXJW3esIsO+Cuqh
-CFRViyly6yarpUsaM9WLMTH4qnX88iIfh8hYVCSJwKSpHgw3ljK5HW2uJ9cMRsu4GAvbCFRpRp1Q
-DYujaqNNVvgLXdlp5jUh7y8kz0NfteUgvyexMYUrzibJPKvsytTlQaoHl6TEiFURD9kXMy36L0Mg
-2LURpmGmrEbkWEddN7tYRP5XaefjrzI0HOHGVZbJheP7TLilGRPLjWnex65wmvoThJSlaij7qFGT
-HjtrYdo6LZdBEwUPRmpU+Njvk0/pFDqDmmSS3rE467QnqO88GcymdNlVdXftN36D90GUek7U1mJp
-pT6JFTFMek1tP2yWpenIa5ZFw9cchitU65C2UA6rGNsUBe8b1fmtLRZhE4ytEq2T5VAfGTSeTvtx
-a9RJYquexGOhmipuqQqN3G6UHUnzuo8G+aPOw+EHyyq/8QKrMX7orA6/ZEX0mQxWUakkiKpQGROv
-b2ld9TdmRaZCDTQ2xSpJM126wjS6QSGLn5hbOVMaeVNFRbGgaR82KsqdsfEqNow3g9PJXzUjcaDC
-MJff8y7RhTsVSRl5LQ/8SKUsI6ZrtrY9qVE0QYQFZRlTTUeai7HPKg1d9BlVcS+qckGtLN05VZZq
-L4csHoxgSkY3i/Niq2NOpRdFac7dMS544Zmdz7YdwHPwBp4n1xXjvlgwkXafAj44QNe+rxOVDL4T
-KG1ZdrJ2IrojfpR+SyfHvAzHnhQKkEMKNy0gQjdJWt0qKuzqOk+MroZYiqlXpIBF5P0YUC8ddEzU
-GOo4vagpNW8sg7NfvNV+oiJjGgMVdZl1E0R+m3oFGZre6wlLnigfk5+GFYSRKlLWQKFNKsHqIbY+
-yzGI5NLvaRl6o9MNiRt2MeMreNPJ9jgLNPMGRvmmHsjAld9lZaOqsZZ6a0jtX7C07mKXx0nFVMHT
-eHCLPC+FqsKOVu6QMP114PrCH7gldm0gHbIIOiO2VM90EqnALvjo1qXMR2UALO/7kkq94YHZXlah
-n45QUZN96XQmMsVMIfJtSKS1jPPEF8s0SMSngmmz2gSk9Q2wzB/Whg6a1g2dkj7pIDYu4VcsCMEY
-g3Yd6rJfC+IHySqpfQFLjiwzVSwV2Z2oiURZzPDHRVz3/ieHplboRm1kl0uwvq0WTd4G9VKkoV5D
-fexq2ZUkFioeiT+5VezDO4Uxo4sujXWmHIj1pp+a8lYMw5B5qdT9fQMI/UwnpmE7sdl8q6wg2up2
-aCrXGuxQeOnYFZ+crrThsUw/K1SSVGanmtIyd0GSh+GiJm30KPnkfyrT0SjVVLXRD6bTSisnDvmd
-n3DwLaq77pEGo/FTy14Uar/6dBDG/ChKoGwQ/r0S+Nfb/7gqn/K7pnp6anaP5XNV6h/H5nriP95d
-dU9V01ZP73Bi/W7Z5j+fq4zH18wR6F8X/aPQNUd9f1W9juLI3zXKfxJkvnrwIAI9CLT3I1CGmPCf
-h59/xum/M405mpvP/3vkSe0PiCAtbluUWERwy/kr8pQocSEkpVw40rQkypZ/RZ7iA7UcIVHHRLpH
-TASf/wg8GfsghWmaBBruEE4d+ZbAE4HvXtgpLNNhtgP6XFJm2txBxXQ/7GRGkMc0qEalRZMyd0Jx
-uVq1bc6LbTCJuFnucebvCrMf574kxzmzTZCijJsAmENypSH9Nmn4oMykHsXPIU3MKVW5Hxn8LuBO
-Nf14nd4cNf8jqp6XxwXh0sYKhc3FzMf95ZEoT6oRHhuGT/LbRjLrXkdWjArgX/I+sSpOjuhICvFK
-JjjSB2JZpg1R7tPBRyaiJPPmYnO1vFp7y6VSy4vdcul5y52L9zsP/3ueq9Z45e0ulhu1wTm7Hd5u
-PQ/H1t4WxxZbvMTZy83mylvj6A4Xb3Cq625wt+VK4Za4/XzKssD1m/vl1WaDuyncTi3mw8vN0n3A
-KXgE5c6f4DXeLJRy1+4adHEu7ni9usLtLzwPt3rAJ5uFWixwx6/eTm0292qzcHHNYrFwF67rzqct
-cD3uN9/M/YgXO6wET3Q7k1+t3e3nxXY+dbHdqIV76Xp4jVWvVwUW7+Lplov1R9ddbnbL+UHxbCtc
-ees+4q5rnLq9vFuv72Y2gVHz1d5ul6mZ7J2Lj18XGT0jMWfOx/byrSyuak5i82a3vHrYLO+xqIX7
-6K637t0ZSqZ1qIPHunFsYk1dpbSBbiy9m6/frwJ1pRbfLl2iztBhhxmkeEEHILS/olrXZShnOhDR
-183tLeTsgt8Qyfpi51247sXrLDRnbNgzrhcEUY/aJ+ibjY4nENx5D/fQFsjpDAF2jnWzEPeEVNNS
-+l0ECjcXy4tZoZe753/4e/WwhG1cQVd3D7vlw+5KKxjO7uEBslQfV1Csze1qs1qtFqvVR3UJDdu6
-F2uo87ePH5/V8aNyL9eQNywPZuG5Nxeugn0utjfuxQW0b7ten1nOudXM4Li3Gk66zkfWe+N99e5h
-N+DYOa0WR/j6QiTzI+yRmIDkSKyAQ8uHq2ABs4S5X80GD7bd4mejVng1W3WgsMLtr3Xp9uqXt16v
-f/Xq5u6ciogZYF/TkSMAzhobWcqslFeb+6ul+2u9idRytZyZvlsC47y73QyTEAwEsVDAQHd+610t
-7737ze3O+1oA21bq68X3JW6ApVyt1Or+ugP7PKDI7WYFvVtsoeelWlw+xmp7B1F7HlXeDRTiwVGf
-FpdAkqWn1t7iBji03c0A87psxazrr60TlaJ9xieFMTATmgrA3qmvwNxO4bm/rZbq9jcyY3kA0QvX
-u1jiIRbA3defgKHg9PojHPmgSY792M+s/gp434ELuxnXdnfeledebDZA6/UDrAVgDcSHl1gtFhrw
-ulyC53A969kLeF8hnOWDt7m6AmBDb65uA6W+QIuWkAm8xGILK/wK1N6qZyzbrDZXm9unTaCebueb
-fr+/eojU/aS+B2oDsAMOXd3i7dMTtBGYv3Yv74Cx+HuzvlvcrX+5gPz1nbqHFxmUCtQKpvrl4+Xl
-l8vtevFps13/vLuBp3Bv4A7cxeLOU48f4YjWNxfeHUxULbbbj8Ds7Rqs98DVZzZj5b/AbjhXUIRv
-We/gl3cX7npxCVN/PvHzHT6eQeHOu7j5+hWK6P48I5HX7R014kOdsAO/MCRcDLzkBX6hu6udB5cH
-01eut/3t5NwzemA6r+sBOvyHZJNOyq4AWdAEO3ZXsH+Y2kx19t5awYrU99nXAy5hFxuFE4EOy9vZ
-K0PQEDxe3eKCjbpEQLDEq/nazWZ1ib/rOzDN27o3z4EN2LqcvSYs6hKWu3kOF9bbLQxyVvXlrINX
-yxlOQ7WGCoH9QOulBzy+mMXorb/uEOl46ysP17wugNk7/MMmLWYjnrWpKS2LWlISOR/fA8Numhwk
-hHmtbGp03tiUnSsZbxavUzmU8t+pMIR/6H86SIiPLB/FuNK3WVYrP4+dhd8aSHvzIX1AAU57UeIY
-l6/Te7kqQRD8Exutc5sjQThcVWpOUjgDSmtt5fBlZPfDMkw783dq93uu4Po3l/YD9VNUmJBS2ujS
-UzEX4Pd5h3pJFFfEr1TMQ/qFRDrbNOUwea+v5SXvxNyjFBJJCMLz47C50ikJG+lUakh4KJGtD0Wr
-kkqIVhXOWNTK1H14/zrNQxc5y0uYRAhqExt5FJ27Ofsrc3Kmy6wbK1XonG6JoYXX1Um8I61tnVne
-CVLI/JDnOILNrvmIibTMSJG1CUilXak6J5+WZdSWbh1nKbptr6UgJziJHgKaEWgd2BKZ4eGqRGnl
-tpFnleqiOt60UWytLaRvH3nBnKu+KuT6dXon9GOfnjzCtrEppsLqQK/KzalcZ6ZfGou4s6IzdE6x
-UFDTMQXF8jDZc7guP7OnMSoEihroi3RuHE/x6DVROz2woNNniJ1iopCWjTYsCvrCno/vAYajK8uu
-41GrYKSJ13YVvQwty3cFt0cPhRl+BqBOLs5m0qKwM2FZR6bc8da3m4hqZaYtV8KJ6SJqqFRBNAVn
-7PkUKYtwJmHNJnKFI6dgGkIkxkC0GiuSeg2KWpd1PFHlZEF1xsAOQ75nA7P2SR0ZWIcOU1WbWJWY
-iqswlMHKTkb9WZqMf+x5oj9Xdvv17dq4T/IFIyNj6BMTjAxJ5vIKVUGMoAVnzPmUzlsmt2wLiT4R
-x7pYO2VYTUZYqTJy2uukKGPXsHN29S+sBcoOY7a4kM+Nwj0l9IXPdehIrYoa7SE2FNYy6grrTMni
-lKpbNuMoSqHa7xynv5UjoyrSllZGhd6naztpsk2tzP+VlXV47wCvmjPGdVIDMXvHEbEwi/MjxIjR
-Hqkii2nVoF62Srv2m+D8O9VULt7OQEk4obPnsqmcH2SPgRY6YEEvABmhb0i3z2pUsFOzOWNQR9nv
-rOYo6sxNZcdCZxgzG4dkQsOO2lTkldJonKg6Z70rpjBelGUZrPK+YKq0xMr3k2TFRNMbSnd5qybC
-wzMo8lItLZiORSgV5nM4cvggTpQhsezgZcy8Sa2bvOZhvQlZm9VnJGjOZnQYUIGShViHMlsI8zj0
-GOrADs0BHZwwCpMtSWm31Lpk90VX7QLLGLZVXRaLKilMxUDfHcYkdCGDxmycTTsa+kwo9BJpHDhX
-WKSDKipGz47Mvkdjz0ajSKuS2D1Do9PJLEWbPmBoeQS0VFHVWbd122TDGem/5DkoU8wv2rbDXoZH
-I2VD1prwFAMrbLcq4sSdWJufkezJ9e1ROVKxsSudKdAAbaR1ndcGKXV77RurjAdqdL4Vca/fDHFY
-FwQMxmGkgThH2G3LPmeIKNGzHu3KNZyBux1v8jPcewk+oGJhUtC2mImq+JGfzQvqJ7VsNDqBjnVb
-2KNesKSOV6RN4+9NVE3L1xHhFB+hsvN4joCdHCOCnxQY0BHwSFbc89LrtG1cUJ8Erm1n9Y52o9N4
-Q4Ao8Mw6z9E9WqfVBoPWBdcqxczERdwXxaYM22kXt0Z1gQ4rd0kSm2fg7xRz52iTYNpFSM6O4G8o
-7QxdoBzMjUzxtTHaoV1Qp4tXfe6QUoW50Xx5nb3zHQ9hwZkbEowhBYJbPI4FWxb0uagDjbZxnXuW
-1pXHsrhTRj68PexEKI0IxmKCEEuII4tI+DQlvcVLNfZtuiDJ1C6HRrw9mHYwzYqABIEgRlr5kdzy
-EVMsnGJUxZBlv2IJx4xLLG+ITgRGHsgZ7TyBJQfUZi3a81d9QK16sIBWGFDxTZdFMrFcn1bTeEYz
-7JdyklJgxgnawdFWmo/vEYIdR2kYTqVKO1JvQ9vIVkWekW2RCXtRSqu7H3rDSFSGMlL/dlPAuCm6
-VYivkZCzo0XKZLCnpIH3n4zGuUu1oFcmoa1bUqE3RWVhLKUM0Tx/s2bO05LwEFRa0JsjB4GcxGqY
-iREcYfqtKjH2hNGPOFQR6Yy3Y7XznCtjfgtpynNldo+5dlmPNQ9KBFRh0V1Y6OJvMtaIbYTJr3Xj
-yybEZFfdnmHrCZGixIG6AwIRW9DnLsce1SrUdMJ2EOB1a9FApVFke31U1FtRsPZy4EWsctupXR11
-0RnSL9R2droWZ9ScJ+Doc+V3j7Tw+7zUGogSxOhSU5KzJWox3e6NEgQVVB+cOSdDuHWMLZU/sKqf
-oLNT1JiFwmDY5CHFTdcM0wLYb/JaDn1qRUAXhJ+2RC3HPIpQEx7xSJQN5uOcfCiVbo3poTNoKs+o
-ygu8nNfEGYPIUBmwjkEMI1il3ZO2hFYmo1eXI78gaZtt9NDWZ7DlFCk577Fg1uxo5RFeNr2fF0WW
-gZQOaoWyh+GV0/gtLMh4Jjg8xTzEQjABUxDHlEfgojM7jAZaYl6Bk2hRGYh1wz7UZwz6BJXZzcA1
-gnlEyqM0tg5k6OgoAoSJCQNCVh0qXWT2GQGdogLVhg6Ahk2PO3awItMOUr/ASN3ouGjVG9+71snf
-nJM7hKFCKTi8DfrHzz2FPQuSNNOhESSl4rr1l03S1G7CMEeDcsiZPszJBe1Rmo/vUcqLUfvTGJfK
-sbrPtszZIqd+eUbXZq94EAZgOShNztgHzEV7/5CI2Qw6K0yjUKZVkI86HvRdxvpi4wSCT6roh2H1
-ur3Oo7kvKZqUOpjuxNTPcQo26TROew2KPHDAQG2GGJDME9d3OpqqUPjhOh+6YDFGwlnlRNNfxmhs
-a5GXy5D1ye3rj3OKyRCkJTDdgBl+drT+kKDxZg/QmkSGD7I1jIUOre5Mne8UEYkBZo5hZFRO+ZFH
-s3Q/RXWJSZ4hqmjkjn1sNV5NnNI6YwOnpImZaZSMqAPscGZk2VMZnyc5YSOUM4/zwY1DZinSG0tT
-dOu8McYz1E4ty8aUhGNLji0Ox+FBO9TWkHVFqWQj/IukG/WmBIJ6b5eQjWIHR/yDGPK4qC1TWbEx
-ABrGdVZ9LNowWwyCRW8XEdiGBApoCEEdcy7JCyNxonCOUWV4mfYOd81IhG8tE2H2h8wj7fBYSKSe
-W+d78rGnzmiMWfeTiGW7bByoV/q5fQZvX1Y5ZjKYDRISfRRkbbPg9shk1lQIkslCxa0ffTRGDD2b
-Ot0WvXCURTpMUovbEjN70HXpX6DWvbWcsjzjW+bg8AhZYN8Ys0c9TJj2cRAwadI6TYDp7cnqqLlo
-hrDOr/kgSPdRtH3P3KF30mhTdRiyP6OYJ8wAmcC8OYBZAiHWkRkYRShImzmFGrOYYSySWKPXl9FH
-xgOOSW0f/79ZR+F4KOrP2MkKph957JbKIZsIUISHYaT6mlVLmU3nLGF+7EOOmhApqmPQoOddlodi
-Rb05GCoJsVphFLipLYvNmE9yw30nPKNCLzkIUjZDiIjcg5LjZApYaZFKgINFIiLDG4tU24pgbuST
-UzPxM+yz3j9j5zOPjlcHy5urjIAvjgm5A6UNEy0GjKwWqswzw+OOFp9120/fdStTzzRz+h0lkOGi
-DFmxzipaP7wuwpfqajIUTyiyHESRQLVD8lmuSdD1GKkmaRV4qSV/ppV8EDmKU9rJM9XycxHlS/ic
-KSJhRScNFVZ2ZKV1H8URNXWhcoMiYdVtu4ap5Gck+SLZcEzOUbuFIdDZ9xyFeDRuMAFXNIWqYqOa
-XDuPoq96GjPuVaXPr3XSTZFK7BD1Ipmm9TkfcUJnBcGO4Tn+Q+XoeHawmkqZ5GhtKyP19VIEydi4
-jm+G90VdsfiMGZ4APrRJkCZLVPxn9DtaLKNGgkl4TGePVn0NXEzuTR9bTjpepabH61DcJSxDmjz4
-fd0sKbbXSGXUtf4UVjwvz+RaJziPXizmM7Fz3ZwHRg81iqbYTz/pHmCvQ5hr1zbfewuxfE4GR6Wj
-n+xq+7Opg/DNrgxMQAsdVTPMagrrSK9I5qRCl9BkMfK0cJvAZ9PK6cyoPsPuU7JF0oX5U4ZU0uTz
-8X03k+exj6nTQgV163/qxpjJxWg6/kUT8VaeiRtPEXNQskL10SH4PeJmwykNjSYp1ISq+rY0i/ay
-z6XhdVbR378OBSfAz5pJEDQTJRp97HBdps/FKHOsS8bS/xk35vjJbmS3SvI0XaOZGX55nd6JpaE+
-j4ljgWqAjTGBQ3opN6KsHQvgeiFtzwjRvKyqAN10XPN2kdloN8MlYmmoFB/pRmRlZVA3MTaOjLwK
-FB/a1kfLL2cbk+aoA76+sBOYaiOm4jPKkbnYeLiweMitNGiNXJlZFrt+EdaxMjSafq5v1/RnM1Yd
-WWn4mjOZ0ym6KDWCJHseJDnSlbbpzZQyCbp9jurN0Eb8ko5oMlZ5FH7qsQvko92Fxpng7oQYMZyA
-EEAi+MKLI3PoZMezxggAdQ0qBH4OKy/njS1S1tYZaDmhoTZwTmAoGxVjDKQfMnZifSu7HjsM/Hqa
-3LSd6Gq0OnvdVn7s9XlgnCmynFoaUuq5dYJaMZLFQ3q6l4EebCdHe5NbG2pM1MsCUdxOdpSe0dBZ
-A4/CABtRFPoMEqP0cJCHpLilKXYw+bki2Ax1ySuUjmIuwuXrmnmSCvyuoAKdQOfZkexBF8nKJLME
-0AQbcvRC+8S+wA68/s11MBMNR1QjbBRwBZVzKrxHpQ7RdrPGElRSMUgXU+jpuOYxemreKGyiz0Dk
-Ka1AdWrOYxBUcPuIdYRMFvaTALeMprnrmukmK3SvLMRTSupYnxHUKWrz1neMT6FEjLzucHFlXscW
-K2Hc1aiDbR5VbFkngdyQYSgvpn5qz6zuhMiAyKhCO0SCpjhCyUTSsh+wIUD1XVmiJxsS2nlBYfrn
-oogTyg4Sc1EM9VlOnPlB9qQ2lNwMsX8P2XrXyczLMDfgyaSwIxVFfnX3uiKe4CKYiLYkBhQcB63p
-Q2L+YA55E9i5spxQ5B4eR//IKy585Rso4qLqz8O3oyM8NiqliEnQGT5221NhZ0M40FzFXeS7iRF4
-nGLPXd0KY8H9alDDYPbe68s8xVME1WIuP891ppkNezwNm9goM+xmVbJOtxSdxEWasUAlHDtP/+8o
-zb5hj5JVYiQME0G5Ktsm6jaA6iZd5GPSlW6UlBDl6+ROuBpHzk3ROTaBTzlaWNZgC2pYm7lqhqlZ
-TaMwrifLdzwtar0wBmfcSh35X/4FotYMKzAHZEtHRKvM6c3IZjl2NYOJEcZAPmWj9Sm08mpJLM2W
-fR3yMzRPpGfzd8kAMQmyetTbD/la21NRx6zKFTIlUwVhvnXKIf0y+mGMr7Bi2YPISOUJg1Qb2g/Z
-GbB5GUvPHSFAKCJq7Lk6Nn7CCzmwNMpVKwfzpqXYc5iGVfBo+LrdTbbhL2pf1zujrM94vtn+Dt3R
-rK6wFMTRKCgcu6O84U7UoD6pfIqhIbQzgkXMYnrzukBfogCyTok6JEbKUEc79q+dxIb7iIYo2Pht
-+IC98l3oNfh+sHzJ/aF4aFoRPL5O8SVD5zwXJTVpwQfiGxEOxRk2mRGSChFE1kRZr3SUi2unnRLs
-1UZLZSlYLpTMA9Jho6sfn5tYOEX9OYo3Bb5AAXH2IfXOKEhkcoShpCzD1JMGDFNhq2PYu06fRiZ2
-C/tT75UDKZM1isXm0+urfwlHDD4Ee/TQkmAUldJD+ha6EQiTARIU21w3+H1MSt6vaGjbyzdTQokU
-lSG0cZ4L7IeUkDtQbIWGl8x9R+ZePtn9iC+GQD9/aXViDM/A0UsrZdAjDMvOo24AhiPG1rGRxENT
-w53QVP+EA/GSPk48M/FRgWvyYhVko/5W9rJcxSPjn19f7EtjAXWU0m0E39JEQexosa1lJW0N6pga
-iy/M0iJKxDl9s0nOVPClGwh84Z2to0AAFmJjQrtHhNgbzjYe+WVnD8bmX1iKTWerx6SnczxTU2PO
-z8BEGhjZT+U1BtJ97MslpDs3B3bC8lHcpihVzl8k8qKdhN6pyPq8zVVAuPAcjW2OjpkFG8z6DVvb
-bow3h6SYgcMXpqBHhl2kL6bB6oCOhZ5FZBgxW6SdnV4K1L0WWTDw69dZeEoXMXWJb2OZC5aYST/U
-hiyOCPKtET5f9vWGxJq7KCZkHh37dFPWFdlq9NpvRBWX37AH7v9w9iU7cuNMt09EQAM1bSVlZo2u
-weVylTeER0kcNJGiSD79Pdm4i89lowv9LxpooNtmSiKDEXGGmN85Cn+JMUjj8ErRdQIZ/i0vOJPC
-gvaB5Ju5jiT1go7iPS1lgT6mK9anJCEZ/EvosDzRofPrOw//Z16ADAvy1TNkXEIg/ybCTCTMgJMl
-cLUwRa/4GENejwkOY7P1ndSgOQrx2BGX/R8CDhYGt+DsipMCRf79rZth0EtnUQT4eNENwS+8tGXo
-X+JiE+/krm+OO05eBTZPXKAAQAxHZvf7Usz2o6ooTFGiXWdtXEp9iifL34mgb5t6/3+ZEvEsgiEG
-ivrfl4GpkYqGNB1aDozCVHJrbRfIYYo4aZZcRx+AJ45XIiX3zDF3XIB2PrDN/Mft/MfPeBPc6Bzt
-Bsnt0A7rqmqXFesJieF+mgqVtqIKhylPTY3TjMYbiIyHfz9Mb26sf1YHuQ9slRidVHRwfn8J6zRM
-Ay+2AX4s3XaVLbk/RN1mj9Ng34MZ/vZZ/3ep87n+3ww6pIXPlIUXR1UNB5PKsk2cnt75rG8C3z8P
-VJ0bwyWyORQ+bw4Isb3I+oHD42hYi/0qAgOWNdrPYr1MPa+ij8Vs2H/M5s6LgkUPlA/68rMW/81b
-TD1d1myqunZnfXdrHDHtiB38TrL6l0cr0M+DBVYMLU7xNlXeIBRhBA2mtnK+VNdbLFNxYVJVJBeQ
-6mvof4oZEf/fN8ibgPPPowG6PLO0sDaKkd+/2sQK1g+eDq1yEWcAgOdtCE0R9B7DvMUVrmpM2dv9
-1G0L0PZ/X/yPLQM8H3sfvAgQ7RFr31zJqzUFJQwWK9liuotoZb7JQXp9Z5U3EZ3C2wQEcaRR+IAp
-sOA3q2xygHhlSuKmG3xnG5/K6Y4vrjqQ3JGD9rit1TiPxzQJ3Tvh/I/jh6VLgM/gwiWAU+ibUFfx
-KWKCq7SJo6mP75NstsvzYExCaA1+izbvoFF/Ww/nAnc+cjlQ1d+cwT5QmTD4MjVeUFvLHYYusHyQ
-TbaFtf33b/eXpdC7r9DCB7kJ5/DNo81Qc60CdJqGoeo4sGUMcI0xGULasr7zAd9kBOcPCBYEIHb8
-U8B09M0e5SJfYrfteCodTdc9G+cTYUE1CSm6RwN/mprtG2+4cunNnmb7Ox/xj3N5Xh7QCJI6MHew
-U38/IgmpKuTAfdJgk5YnEkxS03xFYzoiKfKDKXr49zf756lIkWHhtWLzIF/8R/v7P4F07pxgnCGs
-JVLQCyFHe1iG3rzzUv98qt9WSd6cClGlFVlEyhog+kXTlTlciRxYd3FfPVibZu/Emb8th+7smZgN
-EQWe7/eXmI3onQ5l3rUIYtHIjzNd/dA3fSZTudXlSH0yHryRAz3+97eZQgUICizIk2hg/b5wj1Yj
-+PsJadJyyl97ARhz0v+RDoSPBKcTXA3o6AABwon/fRE5ednDiRpeUXic1yqaxhYoxvxOB+7PjQHx
-Q5SjA4dKBrn4m3fIYSnQ7bzibZIA9cnKYToQ0Ncu/+sLwyrnHhEgUTSm3ram9JTu/VwS3s40QWYG
-uetxiPR7++HP8JEjJKLEhTwTiGt+/u//s8nRqmc+XUreEgtrsb6PcL3tMb9wDGD9vz/QH1fcmdGE
-nAo+jAWEQm+vuHU6K2yHQbQLZGLfYfannrKsW44Lz1yry4lcdWiivrPf//Z8YEKkwG9BC4Ds9ffn
-WwNecLfgLfKhXwAZg8auk7GoHYn3d07y35bCicL9gnrlbCz5+1Iwp7IDZF9AcEJq7uZ+Us1ky/iV
-gmD4nw/TWbkHDhI66ue23pt9HoVl8PNWinbew3SqtPy1pvl71IM/vxf2w9kqHC2m8x55E291CkdB
-ClUrNmDhP21TCG0gtL+B5lXfRv0sb8dA1vewsT8P1++rvokTLPcT5FpsaNPYhgs7D+Y0aZtc/Pte
-/DMXAaiJDhquTcjPgW+++VbOD2IhKEpIuQ33Smwwqivc2Cg6J9dxz5mqh52lF7Q37Ou/L/23B8Ql
-hsoWRnHogbx5QBf0TIhzqIfy3LX5logbYaL3Okl/XQVNbaD76PZCQvbmAfkGxhPLhrZIrD2m8yTA
-IYvf6+v+ueVR0yAQpmfXLGBxb4qqqYjUGJuet9EW2Haa9lknx8BXoS4WlRjzTkg8b+v/6ebiMbAc
-xCgwz0IVhWry94ey3UiXJVDewmSTnjqxhIcxg+ciX8+9qmqz1Tvb5C9HAF0/UHDOfXOkx2++VW8o
-JbbYYaNZINswJgZmVZCpvEChYo4WnPIbW2itDv++Rf7yWhGPQbrBqjnuzDcfz5Bz8rVY3na4fI7Z
-yMMlGza0dCcU8+8J5v/yUpH854DkcPBg7/jmpcJk1BdVt/BWG9NNkJ4h9WvAPijzZsgr3V8IOg3q
-P4dlNBrh2XW+4GARVr6JLbSASaPeNtWOAEMb9JbYU76b9CKkk/3+7y/zLycBwBWOORrFgHPfMqjM
-VgAF6K1qwaEvGhvbrIEP5I//yyLoRKPPARnY23I4iucOfD6jWhCg90M/RlE77lV45wb9Y1+gfYJr
-DLgfejZnouvv+9+heAO4yKcWuvLlQaLt3sIpeD/1sOb9/O8P9EeAxH7PzoAYskRIed6y20Z49nYj
-fEFbPmXpEwMzi10OwUPg2k5sjaoWN/de9g3d50V84ftWpe9sEUCof3w61E+gSiJBPjNBIKT//XlR
-zgkIPgXsZrNIQANOQioTeW9l0LBKzhXVKtT5oIKsamgnNZd1VKooF00M6I4th2qIYhV/DCr1/ddB
-gItBL3dZzuS5L0Z0KD4zL/jILwq4fpIfo+KElQ0ZIgan2UHYUfBDtHcRS5vej3aJWmMB9/KTqfia
-Plk3V2Rq8r7fz/9/H5b0dSl6ZX7FJpr3zyEJefphVcWqfiyCwhoz2fwQHziZhoXXMKHk6mqb+XAV
-FTznAMe49S+uHw0Achherrw4JnQYYcYbC7tXNRC2cr2N5Nkpgae9LJ/R3knodd5ZHf2oNHRPnwQK
-whTumpBExWODN6OK1krCtxE/fnLsal65Mg2Q23H/GHuSQyo5Gc5YqwCSi4Z7U62fHE1XfrdOGUkv
-ZFUxNAjxLFP2uki/paFNl90V2cW6hC6kB2M5ejGNjGRFi4u112Q/GQWqVZ3L0sLAFcqUYSgaVS2V
-qr2fWdROPUv947SFePwh5zFPhpOBS+DnRaOcta1c4b76AXzZiX0wQxVAdt5iPaBQsRo/NQez5AVW
-3REErWkYx/BxzmdwWqsOthEHp6PFNFuRSf6gzx40qiUp2arPGfOF/jJvq+w3uDbTcfuoJ46ma21H
-LtcepSyr4os+TYx7zAdnBKqILmwL8EoeEcprmaxb+Jy7Qnafhqy0CznCPWC38lJudusfin6bra0h
-mSnpw74Xk9zh993tnjdnVBY59uBzN31eC6j1UXeNc2Weg0932FvDHzmQh1KnnfxOcWMnXaMIKTvd
-hn3lMA7nNsq2j1PeR9nPJATaCTSl9dJHTd/ZgsMytbRrrBu/LXBbb7tq2jssj4NcPXHmFTjr25yX
-4eTh+zy+lpmIuKjBl+g97ha5FfsXxEqbRLXZqAj3y1aCBnkiuvI6rRM+rlnXiM6k21oPZUjYT72O
-CbxcOcs1ZAvE+zh6KakPGnp16sJqG/jALv517qsQX8HrloZPFHbg3ce0YmZ8grLVyTarGNkbyCJC
-UZeRYWNrp8FHtwp2ThD7oxkfniUBe8S005Zj8XVfihvveU6fDS+3cCzZhAjUgHan+6jVbIo7crF4
-CeS1Hhfq/etIFQ7qUUUeFg1nn/MAisjIybhG1+maqLlqAoMf534ae5IVson6Em3AOiQCWMD1RqDi
-rJrYqi38yHoCFKtlvQYLqI4nH030CIrQWEItF8MPOK55FMb9FQxLAptkKMrZeJMkHQFLFR4/oCXX
-MMXuxNdsWd08NEUXhegx72cYJ0C141nF62BAkdlqBNhs+6645z38m5OuWrfmzIfQ+qqAEzc1H8QU
-ZXK9XI3s5+20OsiCdWNRFMDAfE5zlt2MKc/VBt+ioR/7S4NozcGRjisz13A8X7MmoYTMAo67ezkn
-lyFVCF+fmMz8tj2OcBIW1UGPVbHHn1Y2ofZBdldmKT9jkqS4dSY4d12CNKSTw9wFutd75bf4oLWH
-JVBbkZ2v94ovfrlY4OUxcDAKzSR4jVEqe/WjhIV7Z4+G+/yXmYe9uI4joaMvxZDo6UkVUOOD9Qey
-EoiHEJFOP5IUMblOLLKFZneDtddRDtfCJ48CeXuOzLTKk5RdnlzrEl5UDcJX9K0wCuZGw+bny5UF
-edozFsMgYl+6uM7hw36bs6S/gy23OiayEnfA1WbgPaqodPZUDpkSB7SbVpfUAL2n/g7e5DuEu3O6
-UPKSpOh9f8czDemLyblGWwBipOqEnwXIIe7F5hvwEGR6At06gom0H1nW5jvS9EbwKlle0i0pSVQT
-BS/uG5LBV/4xEYNcbmLcwOx+oYPzN4h380ugse+fu7Fa2PciDKV64IKUxYNZolC9gAu0TEc9kaFo
-+3i2/oRc1cNe3MHBmx4WotjPqdLxeg/a6qCOrhtc9Q1bdsKeYzHoLg9rnozjj4pRnkNUuOI9wNnd
-runPgVp0p2syrQl2NfZI5B6yVAGeIqM3+cfRhyVc9YRTyPqpY1I8s6400XhBd53r4hhla+fiC4dC
-gbkm7CVff9kShtw/raDLuNe9ielGGm0ITb4lq3MwvO/H0eWhhULDatnABanrXF1V/ZBBqzH1Z1bq
-2qeL003ux2X8WWwqimQ9lYuGUrbvElN9XSiP5udioGrApTRho/c1mGEhh/v35FO44G/xpsyIQFq6
-9VSWVkJ/DtxjuR1Itqc1iDKwCyonh3gO6oHeXhV4oWsNDdUA73Aew1NfgAcCjmU8EQBJbhpAK4It
-Pi2fXQfg9JntRP3oxpmX6FZKK9ANnuPnmKBj1qTYi2lTLN2qvustlI8geOHGrlTUu4d83N1Fh/PF
-bkSf9mOD6LO8lDGA31qnVrxqkHoepZ/4j3zIjLqYJ5c+zPueP0B02pl/roXXroxXB52jzq/Gfem3
-j8gUSrSk+6xSpyXA2OIEMxNmDhh4QV2TTtWaXQQdgdYCuq96nuICH8sHcrmuPopb9EZ7TH+Y4XbQ
-gIgHK4JskZIfeZ6xG1Q3XtWzkuHrQHB/X84mWehh7vUOCrYx6rAusTjmpY/pkUZjd0LxAceQ2Ys5
-AqmNLX07q3GKGgvSeLsCvdhOO663VxiGO9ksDHdMkwmLjzJ4CVcgC1arwdSCfROXerCFr6ktwR2D
-U1yF4QOD2207eKLdVQfLC19zPhYXQq3Gwa5mL+M2IriG6vi8VLNNiQDnI94YbdZ4ykmbusRh/sPW
-9Y8Id8lnnU6jrRNf6U+UF92nrHPsVw9k5yFeYX2CN0JIdOyHCThSVKwRzsPEq72uSo1kFaYxc34z
-M+XEwzSFUZ8Sqvl86SZodI5bahL3SUBlvrR0KchQ80zvgIEmbM1cV4oemC9hX8/xZ+7O3wGdcC8m
-2xjG4GePHGUqWhqQi4CX6BUuEV4oW+fjlnyt9kxddzC4dy2YzQOeAXb16Qku9gsU5WHgXyZ8mqEZ
-dkmOKVTfGX7tCEpRls0jaH9KJA2KHXXkVOJf0YZFDt6JcuzrlMfd8yo4ZxcYA7AndYFMBRQMXlZT
-U8VyvhMyL/tjkXD42VR6y80xnXQESL8KoqoxPmLycMEHs7cmWYxZFUCoo+wQNjU/7oVW2UclOh43
-e064qZUrZl2LfnHuNiu6GTLrLq26Zuz2IoYLP2aLfFhClFxMHVfZ5ZRKx/CHCEV2WWxxqFMog+Dv
-XhgEMx0GKo+jsuQuAbVq+hZPAsb4JWImpgi4rWv7bsFfm4qiEgdbWWR8eTFkHZjiY3FdSV7QUykR
-w7daVqP4KULq9p85TFdelJxxn/B+GNJ21FW1Hk3oIjxLrMcG2RKFG/cOuscVc2v2nGRel1cjgw6g
-6VPbPYaiw5iVGcz7a2cZkku770jybJirpM0n2rkGplMVLBd7N9z7JUm+aFr1N4OcFK1NlHYGwbDi
-QzMyi8C4h5h+WpPIf8EkEFbVxNIhfkw2A7uCDBQH9SLWxaI3JrTB3BYcS4yUAR8eN1/Ohojc98hr
-n8JGYOsSTclwPcWYV9FMcP0OtRaT6Nqu68v0Ap8qs8ew9bvGVh2rRwu5CT8wNxhWd8Co+4thJ0t+
-FKDqiNpCxoSBCIahHRwIU33dTy5+oTs5E6Kg5uRHNCH1oUot2KDM9ewUEhvBgyjrOnUiyKfnz5gC
-sNdzWQjMK+k2xC4gG5j5Uu+QSKqLFXrXe/TeEtkCP7Lx5VKYGAoxgpoF5ysfiD3B3NzxixEjaOZr
-5Cqo2gQ+C79AkwF/T8S3TLfaUUjhIWDpPwPWVz+TOHQ/+nnaf8D6pf+6d0LejBm4eccUVfp94Jt4
-GhmRro2woV62dIz0KRLp+LQKEiFmqjikx8LlEklBxCrSZkgo0lMeu1hcplLpJ+DsWRca1Puo3oIZ
-08cVGjt/gAJpbnvGc9wFBLdWAxovvLGYpOWAZHBEgWplmt8DlYcxRYCYqTqCox+tR1KshfvEx6oU
-l4YKpMPGRsUhSIt7qNbDmJrDDK86zMshpH/lHZTzNUhrkXrim991a9XC0hNC8XQLEgWDxDcNOWQ3
-W5XXNHD4BIBIUf2K1sT9igypfmmaobK1nC2+2aItA2hZatxnINjJAXWISg4sQ3kO3svZLNLFavm6
-7zuULl2fKlFrzCb5DrAENZCpYoEUmayfSlZM39ToSXqVQp1+iqO8HBq0s9cFPhzoAh+hXBFzwzMG
-7knfL/GznZjFcZlC9yXHxJEPeaDsa2U8wWyeZHuoSLWL04yMB/RJk0FVXCiAToeB8+W4U6WHQxW7
-ktX9NvjbfZEuOkq6u28F7EhFnRFvvvMUHglweRnTvGUuKU4yWm2Exk0XvuqIWkjl53J0F1bo9Nu+
-0w3zpryfvs4IHuFQbCW/TXgS/Uo2tX+wBH3wY7ro/KvtJH/qMzhkQNIo9dWWd0iRMoAptvbg+NgL
-CRKub5d9UL/cEpFvIyZFJYhv3n8cJgNLFj0F2d/xYaGATZUdf8ZSr77ZfSXEwRMqMTTKye2aKIfB
-Sunol19dTtkXn87dw4Yr/D6XvXntTVaq2uKtfS8Ws147tcTI9Ud88xr+Ky5upMDYmlrK/izbpRq0
-hYh6iTkEfb99qFaU4TV3wqCq8v25TCiz4T5OlBuPczRk6MjHcDM6Wu3tVvNlyIoTkMv4NTciy+FN
-oskdXTMc9wSyywKNKtTwLebC4CTTwhWoSsEkKIE2EV8d9tRBwiGcm64CMF963BMU9odkwTCu2lBj
-TgXHu64ro0zeTFuydfWmC2wyZim9Y0vZP4N5IZ/2ZEMfCIXfpjEGrFqiGqNCEENUXrpHIbvsp50q
-ebvrQXdXrseYtENVIok5rk6VphHbGVHBGKzuMl4KaY7OVdUT7vRpaG02jNccCm9zuU4y/zLZlNw6
-jEPKjnHZ9587JKzbVdGt1WNfMe+gfRTQGOjUZazBcJrlUMauEBdLTEfedHSmP8oldSABjUxe07CG
-Z7pvs2nWTOcj7I482WuPL3NSgCL3o7V9eGGd8+4G0SJTxyoRyUHR0uzNAsoE0tm5Q3HH8PB4O77y
-Lyi606dMpN1HsULoWw9myZK6I8gB2kT46JccuLqG3O8cwtG9yo+rHeYCY2u8uS+Mx0QofMIYLyDs
-eRMgy7qDp1vqmn4OOUY6lSRfDh3S9qwhkkaXmd3xmBVEEPCBVHtR1DjP9DsQPvYpmqn+TEGn/wKY
-wF93csNMHNPL6nO52+kHOoHyft1m9Y1nAUOX8JiY/BKlKH8xZqeAWwY4/+DB7RW7TEctS6y7eewo
-wsx+YFFqkzqmbMGbRcxAHyTJ9KOEuQeK/QSsCETPYrm3qFIxOoitPL6ePcm+WK+z2yLn61c5CPo5
-LQCh1ZpK801ouE7VTqL/2Wg15Qphj8ukXjGM7CsQZiTJW191NyFb3IopcvF0i0Ee0QBpldtu5q1D
-khLFW9x6VsgJsq6F5LVH3fFKQM16LYec4ncnMyQhIG5MJzpzjCvydnUogSArRfEfhmk5MUX2W1ae
-h4LkgGJNvfRJ0TW6n8rtgKzJjw3Vgb+Aps/uky3fba1QH4VGYU5ThVrGThdjDj/C2s55MTVdCsH+
-Vbn69WtiPX3KQ0URu0kYH6bRlJ+zLo39ZSU68TQbPn03oFjfwj5i8schHzBoa4ILxkvk0EitE9zA
-EP8PS/wo7YgrgPWwzUSIzYsHN0bF5y2dUcqBRUyfe2txdeyTh+onX4WTVybi6bXUKJKR+6bT1qZj
-TF6GcoItHWoGhoK0pDBy0shablTAFMF6pnKxNY54/o2QXXaHftlhfIShYbimOiHuxhT1BPpAwJRP
-cmH8Zg0wSjgxUsWXpRbFz07R8Qr8dWQx0iLFiE3pntBZLpYWNGS2N64kZd+W2QwCvURDDFaZ0M3f
-DgCbvu/SVPnRmCk5ZrlFRj8ajtFrybrq12jZq/sc5D5w7UdYktQiU3JtKng/XgPKnDAOaRXDx04J
-MzezGRMJQ1aL3KuEaRSGb6Wd+rhVpNgbtc9paAyN3Q0tO1/hKjTDYwkX3qLGlCmMpUrLLT7iG88B
-mRukzirR5BXkIsjdIXpPdJvJTN9IqOP2CwGU6Kkg+9pfwTUSl2OPtLqvEYvIRdVHzp6ibi6Kds1K
-qNSzDkGGoll2xWIZ7rSRS3UIrhfXfvRrhgIs82ldYXjd3bDnuNXGogOMKbd1vBgKAEWHAObhS8bm
-8HWpXLS0+IbiBnOckritdo3NLQVTnw0R87dKSdo1OTKU7wAZ/C0vdtO3qJnHD8Z5Iu8jWDGY7rGa
-0QRu3ZQaTOVh27C+xqlXSDuGjW4fKEu6vC3HcvHfRCCRrkdhcApIafAVIqTqqAx1KtLTmQAAifOw
-Vt/zbFjHw7LqsL/ubIs/lgAOL7yNehycYLeXSe3Vd7VNsj+W8Tg+wzidft4mwtdmT4l6jQbcunWE
-ivtTILyC6VJeTcd4zbFLq3zb5YHorSoPbmPzcLGi163rZKRxuOlkhZwloCz+mFON9mLsEjgDpGhg
-y3aYRelqWJVO7lCWfMKotCpVH4WDcQKs08NIarf27tVQjjQ0KeKxOCiJH9NOdsHSrlwK3UbBu1sk
-zwtqWS/90ih09IYD1PlKoac2L18JxumV3XcZzi0FHy3LQ8lJWR4wDg/0wn1f/N6EIRvRmSo2EzXE
-OwykQ3dunZsJmPavxBcRbH/xHYbkIqv2+cvCNricsmJb0gY9ZpQ1vkg3dHpIPs1XmiZEwqIzTdEd
-grEeusTr3KtmDCG73/gubmxE9rHFcDaUQl0Aba/p3QoT+X41835MEuQYYMB0oAGrWWGIJ4e475Gv
-WxLhf7fThzjlyNs8D5E6BnR9aZOPQ/6gJFgDtfPbjI6bUMUHWNKlRY25YdsPCOIdxvlFPprbHJ95
-btVKejSs5qq7tx7GODUaJSI6WbB29zZzcOdsMlWVK7ZOQm8lY/oRoIpCbe+nMT6Hb/l1cHRDmIZ/
-G/74gGy6Jiy2T0mg1d2snHEn0PX5vR67OGkzeEQ8mArmjfDzNnB8H/M9AVwV9xsygUgnMTluFVpG
-z6rnHTgevLNxM03jEG4FFSjVMlyDqi7NlrnDHAiMO4kMu7we1jK+WOfZ2HoG/v/UY1cZMGtk2aNX
-QacOwXjAgRrAlelqB7oXCtE8605bl2IKKIyJZ0CZjJuuLmE6zpp8Y+4rHaWJTj2q1Ev0VNO7qdjz
-X31a0Q1xqzOYWYcNVNSZlCE6itCJ0K4ssU97RhSp43jwGt4YVBYAYYZCNbOaQfj28MZyJUgXadjR
-5gUfVnzY4Z+WNcBp9wXZ/l7eAiRaPzFQ5CIA/miFwMt2D+j6xQZAwLAvgTSeafBH4wF3k4yp/Eb6
-IaApSSvxxIDQzwdVkMo3BPXBfYVJj3sDdREmL0aRDugzeykuMfgQul7jAMvUGZwZxrZA5ro2GzA+
-hS8ZJhQAjmZrk/GZfqzWGHV1DNHlIyCfGC2MJd6QCG2bqI0ogUn5wsz3G4ZA8hZ+3OJSiR45hu0I
-JlXavbffEuYjiXxvn2+4UDK+TAwjT2ug6QO4v0HVmWEVOqzRuK4HBbTvNkwZGmB9l5lP/4AMmCla
-zT+TbXV3ZGTmmbBpkYdqXfjPLBW4Tmfrwrfdk/Uu9WP/c5lg4YHiIGV3sx9zhCA2Jc9WUvj1WnSf
-LopkSr6zDSEPj4o9Blw0bO3mxvVLMRI05kOwcNzayl5CkgwrF/i18eyAe47eAUHTjyhVw9ykXeZf
-QJImX0YgE7jIqt7pWm4x4bdwKwWe1JnFfpx92Xvw/QPGHmDM4fpzjeDZgmw9/0lg4hg1KEbLD0my
-c3R6V6c/EaeQWfdmi24lP0ca1/fsYcT1aZrdxPYa4AjUtyAyF6Rmg47zW5cFmgOaUfLBxR75LpYc
-7xJHctgaWtx3ZWERrFZMtH5cypEv15oVCcaKJspmbVdItClhoV0mF9tCYZWVwWEla02MUaZ4Q+dg
-hVRTNDPaqc/x3qNZKuCPt9cZRdujgzVJdoFLMEZfWzEA4UlQ04M4Ow0cqzHxNwh76YjyA+l9nZdk
-+sWIorQZXb+gFLbp9MhdpfcGePmgjxUdYfqSuCF+WJGCRE0Ols+9Rvq/IhyUPcAnyEc2KONdtCLJ
-7hzc35mabS0Q6yBPskPhLykUgT/LjHNaq3ijqsEm8S924+Spi/k6AApe168YKIlurcUgOVFvzs73
-OaxJv6+4ee7QaY7v4dc7JfcLuPAMLTslMHrjjBA7PsbrZ4bOX3Tiqd/uMXNUq2uWmxDqBccrP0KM
-CPyPk7Ph8dlr+KC0Ri6flkM1gM2jydCAYtt/GwV6sxBRrihoySoEYKJZ9PcJ1LDbYTV2PXRMA+J3
-oPLh/foEScUqo/xBxEIseNUdcoUJbNBvkQAwfRg1QnHjucOOLaeo+GXSyD9Sv1l9PZc5rhwPzU3c
-FDZzX9EHL2ijQUI+5bC97S8HCnr8+ZqDH+Y8TynSv6lD3w42NAlr0NYNL9zZ+NULWca1TQS5huh9
-+pkXOxrPMHmG2SoHBPx5k4UtahkpYPhZh+GeShP8zWq1C1JaWsisWUSZ/QLukQHtAIvgDBYraK5G
-qlFmwTQ++o7eCdriI4KabQTgw+TGryr6JAldkgMmtf4/zs6kuU6kWcO/iAiKmS1wBsmaLcuSN4Q8
-NDMU8/Dr74O/jYVO6IRudEdvHO46QFVWZr5Dmok/JqD89JFDwHg7pv8b4CVXPWSjPv+cYHK98EBM
-aKHYyMudjTrE8o16aLvDiHf6JQ0fdfQqttBXsqUyDyI9VFS/chZFP8yi019Us0yeYKnGP3p6sy9Y
-eYr4AE5dPNVpYv5pliqePJIelZ4/2NxPWdXG9eQ69djszMEVvyCOy8XTwhQTACZRGNmFmuXj95LR
-XealFpdhE3SwQdjICDv/4zxONd3DGpw4GfKZFA/mTb2zMiWWu7ZJjC8tbhPATVNp/AmZuczMlMoJ
-g7gZrXFvJwtswqQ3VYWKoVLa6Doy04JnBhlQ/In9Ou+rvtdzv+DbXZaiUsGSEWT+yeTY3UvGTdeB
-EjIk1Z9pV+s7s2RgrC/VXFe/LGHehB7GROaLok0gQmXkaN0+pYB9sDNFSN81FWW+YNqv9ggdFmcA
-VcTkBnaFh0vVCboz0ZoHeFEYytu81GVOcB/Lr0oDPMYtzbQPbxHSvldba4j2o9IVP2xJduQnJc1q
-L1cik/tMy+VjV0/mbzQX9GfKrK9sr+nQ4xjPBk6G4lqfZ225yhojUTw9C+k2DZFp38LVlVngcA8v
-Qdw5NUFJMXvkdQPuEPuI4S35IcxrO/2iET7oPMd1J3bMqUwe0yyaafeYo5LsKnhJzE+PNdrKsrMW
-X5t72MMiW7IndF1W4RX4WUT89WYJrFJbOo8rEoyj56b502KgawQgPuLSGosww8PStS6tjKnsNPTH
-6WvMq3ySy4LIeErdpPKVjNjnD7EWYzdcVrXc0xKK7tp49efIR0s8KWrcf0fvwfEr+xACylzIqQ1i
-w2kNP1IkVAwjdLSLNuX8vcITIEAadgnQpekE24w0i8NZao30REKLAXMTyJH4JrYUsYlVd8wFKoR+
-yDt837gN7HBnTBQRnoFj6r4cOiW9MucxtDxnUicm/A44E/l5SUP16MyW+Ueadfy9JKTEvAS7v6gE
-KVHgwIEyHpYs769mQ62SK7Iz62qUql0ezKEcEt80C0g1ZA50a4QYRBMUg6bQgFkiNk9smtXLMPc8
-SK0n0X1B0fV9oiZA4qNUGBwsjgy/ZU4kZ9SUiw0NiKsjZdK1aL5ISZqyL+ipZ37ONNwe+aze3Ih+
-rH4xgNtMvkyaZR5RX/e/rCE3d6oW9/UNrXswrw5R5ExQqq3/3KFIfs9gq39yuq9PhrSgToQSRx9f
-zyKyt64mNQ+SQRq3HXQPGGJgsPgoDfME5DAYmT9rWJBjujk2r3ZaEQT7mG45N0lnN36aJS2fYrTZ
-+p0jS8Mr49Z4cqEevca5mJ7U2nZ6r9DK6bXEIFoEaTwo9+QTCwyVmh9vO8U3w+ibp2yqVNcjVosU
-DRS8E5hjRkPSMkcywfLIKhdqt6Vl5jYGMLQacI+nzSXtxvFEPxmvpuiMb7pq9/eGQoHqtc7Q/tLU
-qCQfoQiSQQiseVHwgKR0Ya9/SUhJLT9PhraCs4JnNWafOsa0g4RkwdEv5IG7MP5pG6PZYS09Lzo+
-T3ViBQZMmCQIeYHCh5Zrc1ZD9oGfaHoCbRnPMPBzCWHLW2MyohU+sOE1jJS6Kh3anSBymXzCYCr/
-nU1DU8HCX/LbMifz3M1DJIG1gHeLwE0HY9pPKbB2PVlF7c92ZvBkISrRHSPYsSmya2f6ITM1e6Ug
-QMedFMryqIlZRbWi1OOjEc3pgzYPgqaRGEHhuD4q6cPXAJnOna66HbqwvikMTf/WlFT697SddMOv
-YV79mFHWvUTVXHxtrYwUGwZ4CicsCfWn2JwrFPhzot8owNzxsSqj+jUeqpWBSA2SeSM2bt2hV5kd
-7g29y32hzH0KnASY+GhZkFrSGJtLb6zL7s+A4OKHRQnKXOxE53zqJAlkE2Bc7q6ymETv1+0SfROd
-gEwkQXTWiRoxcIVZjbznpMB62ut7ZpBP+jjdFwwmk7QujfQVRh1FyNwNvyeYxYUXt+sublsjqY6L
-zMrnCkCYDe3mU+IrNAZUD+wgdj2aTrSiFiuLr+NOlrbfGFrDPTzyl/Z1bPQxoz1imuO5qsz50ShC
-iENtNHX3URtCsUhXor1nGGM8w0frlWdq8/xWN2l18+ZT5VY2XXSHnAbz3FCUxoUmOnrAzUpR4sCZ
-JgaRWdU7gU1T7YmmonxRo1Ezd7aa05cdmkTcwJksLR9dCY0r6jULVDoV9uwTZyFvkHqV93PPeJhA
-qZmcTuYOlBxwBFB5RDD2npVYl1Ogx7N6HBXgd2J4NL060gwfTbIY3pOl9D+FvoDyI4hPGDEjzJlC
-XRnjJxEmZniJJet4W9Y4xuw5CgQ2qHnclZXJHGQQ2KGOyNz1hn5TIS2uirlqrhSD2OLZXdRlQZcb
-9eIp1hzeorcYHgbN6X4ORmc0R4FnyJcyB4onc6tCYEnDfKWPNxL+7CY6VjoKe3qxSXVQxxpmz2Qo
-8guP2kJtsLU49mckV38S9g8r4N++b9XC+k8acW7tlGYoX9fwQJUG5oGPN5nEhR1OBbaG4KUvtTMK
-9A6xHpXcUIpDe4YexU3eIC6AHmOFN4udM81voREHFyFeqiFwwyqSpERGcrmYJR1sGcJTp4EB+2Nf
-K3N2kzGFHUVnXYwa26fRLzMTzAnPG7XKqaGs7EHtpvTXWC32jxg+OITMWFe/t0tNUWTmuO4YUwzb
-JtJUNIZRr4ak5dagf2cXpldQ8X9NYZvXvl5Ksj07IT+3F0fDEbLM1WOqSfhM0wLIScBO63iXOqTs
-3qBQiXopcB1kI3fULiDlxM4OpzvmMlmlor+WkOGIVjrXcFoO6jFua44EjX/3rtWkfifpQJdBOOrj
-S61xa7L5jPGnVjJqyEuz1PoytHC/vNKtkqdxBi6jJzWa12iwR3Y45Mp410Psa/CGkgbVvJ2BYliN
-UC/5cA1cjWxSHjN3iiCyrQTEymTa0GGoh4SAG5YvDSLS51Fvq5tSTSb9mOZS3ZfK1BkHgmud+XZX
-dbEBa4KWIKOA6Cfkw2VWgn+KFUmEU+d4NorS4Ti5ZgHeUCRWSwTSaPYyJAWhAz75wNuDnnGe+Ahh
-A4+pMy2Aj8G5zsaEaWatTnv8GlEZ3YNyyiybuTIN/FzaEnQruDfibjdIO9f3TAmipZ32evNcpdr4
-Zyy5g3DkAnEO0m6uv9quUPIriL7Jl5RoUfj2uFZVYMz8COgySeTZ5F7P+JAqX1AtAmPby5i+GrEx
-/gHjY9UmazM3oG+VO7eNUdAQZrrhQj2A/y2oa+mYzXd0cNL8EptV8g3SQdeRcA2yhzKTKHBGJqQs
-md9IGFjHiJZae4Wctr0eIJr3vkO7azkyHVEm8S1Y66Q9wrBYfpJ4DfDhJ9sI26cuypCC7BosuOwL
-BSj/FZfv8XmK9Kk/gMk7VeBSFcOx6BXcIamvaW5H9qK8uFiiYdvlWO5N3GduDBssdkiuq+prC4wP
-sUpN1J8K9IgyWJLMDHeQQ1yoUZSmRWC0cIRAutcDYPQzZoVa6Qy173CnWGTYNkwzkD73satq537p
-9VEFrFx4TBTK9QGm7Xi9DO1C+20hMgQAI/1DBGm6Bx8SWU1P08meEuwR9KCvqgbXH1iAJJlZMdMr
-bk1CTiMyin4HYoiAMtZ1HbwUJc6AGBS2DfgtNo6ZXOzwWNNbTjApIsH1K1UDMgSCK609tmMSbyas
-1Jw9nfuMu0nXgOYMaOR4xjUL5XLZDBqgla5EX0kex2EX46B6iZmMoMOilopCcdyyfcdJxVWhTos5
-9LKZ8A6OSMPnAldwimkIJzbcriUVr2amZeiHS2w0cVsdsiko9MH4HS8lMVBJmETjKXpBj9ZN4QB7
-PcH6ocnr/BvERF3uqOqnpyGKi/hCIfEG20ikfm9HGg5bk5DsyM4qOwFqKMT1SHLzWqeD8xW7YBfy
-EZOKwl3uLkg6F13rbhon0X7ElWabQZpO6sViRpW8bdyquR/n0lThbjgw2Ks1tS9CPWt8Q+1hhZGR
-KyivS6v9XsY5dW6KLShBHhJnGNAZN+4JB2BIaMyg5OplriiQ35T+jjC1DL6eZnAcZYqj0Vj/vQeM
-zh28Sq26a0IjODE8ovAZJUZ+nHFWnQIID8CD0Hzqlxl9XBvUEN7qS2amqP9FU+noB1Whx+fTJhBc
-JarF9EiCi+LsxKhTfuJ+3v0uIq0dSaiz6AmP3eF+jpuBG0Za0WvdzfN/kQ3Nbp81bvbT5ZJudhYH
-CySiTp0aC5rUhhc6k3L67HjAbiNWODeoGEj8KL2zX/Toy9dK2snoCazhn0Bx6dGMbTdfV9XovuL9
-ApsHxNisQQGWFMqyrji/87RYfibUVjyVyOG09YU9GH6apGa3wnnm4KuJnf9I8HZlaI9YkNsbdOpA
-PZNV09EOLmTRsloKyCeqysePgO0u23HWOk+1tdHkHBhKDMsojZqdI11o19wtjFNyImOJfADZ+oap
-Y+oc2KqlXplRybCBRIx5dSB/zL7XFVGZJA7qUa9JQj+Ex+IXdNP0Dl1rB88w0QplByM8vOuIT7FP
-mi8o05Kq/6rBFf8mwW4eTQscweB2vCqqXH9Ic90o7+t07LHacZNhPmrOMH1t47bFBnVpdGyAZN6F
-h7nS04de6i2dp3FGtDKrC91GchdMUxfNyZwdVZJi7RKjolyc2tpqAq3j1OyiLpmIj+7YlBelMWk9
-ctzRcFx6qybxwdQ7/jhGzvNLJotUfLzWKhwNUjGnP50K4sQBi4whvB6ocSB0MaX+YYI398egNOBT
-i9XMpYzotYdGDJ1shgEDvaFT859jM4WPIZn+b0yh1jbrPI0GgYAccIcUR39BDwLTo0Ae9FInExd5
-0wn3UOdjBsqKQqg4TvA7H6hVJEONU62FPm8iDhrFUgu/zVEiepmm5TkME5okQRgikyGPtO07etNk
-myaqgC9pA/0uSBgv6QAe9FxPkGv0J22uk5+TA7PXz3ObLBf1X1P7teqEd2VqwDMi8yfJBXaNs32l
-F9ZXpdAg8vSYhty1iugWv3bCfvSQv8FmkrZaPWZ2Mv9wekt8tQC01J0IF1UJYtcFnGAuVJT4WVOQ
-muaKXt4Lp3MemNxYvahKa0JYqqpI84mHtA+ZDFdeIUlTSnTNjf6KnzyET+i4xUWD8GrYCXzfO5/f
-oz6GaJ4vl2Ws4IjQQP3dZkn0otFNg1FbT0UCEssW8zS9UGaYgsPKu4TgBjkACvz3sJxjI4CRtADD
-2448wLDnb+pw6yruPdA3kmMo+V6v45O2i5rOvulSU5kI1bkw6f2l6XMjs+TRDTP3DtiQjssYhouy
-NrimynMsBWnLlBik+zOR7ZWkgVJDg2XpdRViBw9hVfjTimlV7Fu3To1ghgvhwvPq5ktjsQq8LtT1
-hknVOk92xhDTls1hdOg7UTj27Vp3mgSVfrloqzZq/LAf6O3h36RdtcNifIsyopiHwWXC9CHKkr3T
-SNIZzJub/0YEf1dJXXRaMDQqeHnioCrgTbMhfbOro9wblll5RoDIN55mLNGdZBGP+mRj1VLDu9Ro
-jZGiMUGn0hDeZKV732XhYnoU6zFJQygEB0LVlG9joi/fwmToBYTwtc+MGVz/aqStXvvLSB/GX5hA
-Ea6+gjOAGz2ju2KWkQJ9lrLam3VbXCMXa24cN4JwbIuCzD4y7I5BUa4cJyI98LzWzkC9y5SN4R6i
-qBEdc9G690oZ46LhuiD2X/RhBM0ADm+DkLDfIrHgrr/QUsNVvLZjjnJXNgq1aAfsvqNYLVNkiGlV
-3WuzgBYAZ6xFRBOq4F1o5PpdPcWzDBp1EobvLEig/Unt+9dBH5VxN/aNSPdu7Gacqdi1yLQgoC7Q
-56IoDQQtweT3FNGY2fWLIga/qBDAk5jNGZQLt9aSS/zH3OJ6HBLnzkyyvA70YcmRaVVw7G6R/ABq
-9+gUeBm1XvwWWSna/Rwv4RTMEy2rfRSTGAeCt9gEC0Gc3CIFpeLF5lIRdIW08CGpbXKJmtEXCkTP
-gSRk5qz+ycuJYeoJuo+HqptxeFnHAFwzEKF7hjNrAEJWrXVdm+DOvr7MEmqxI1O8GI1QwLwlcnkK
-QMqNCAWUl4lOKky8EVp2kKMf+l2Fcv5W5SK9NWClqythkN4x3VibQrSS/znhQPFHX5deId1DMq7U
-BLDp7Fz9QcY3dj4lSkkKOjTOrZB6LQ6h4Sw/ImVUr5GYDuoXxGT679EU+tqcyaFnMksouqAxHC/g
-o2p5i7hAF3D49T4GZmfAgQ8JiBNlT6l6HzP0IPMrQ+WDDapqPvZtA6xc9xbwbqa27sWsRN14GPne
-Xxdu8Olo0M24SOme3Hf6QA8Jj7P+CkIEt2QF++SG7IDrIlfbavCWlibGwUnqhgaWhprgKz3JnBSk
-GjT4UmXm3FtFBRmW6ya6rXOYxN7AW/4OQ324XQs9qDhqjh5MUar2Dp1k+CuTdJD9QZ+oMIzJyaGJ
-MFLlxY1nDnMk49mGn5XTrihSjHV3uOEZv3KabTjDajJ+jI2yo/JV3foFnyErp8lW5r8iUTewIMKM
-lhJq7lzCSS/lo6hgABBk4V8YJp7HXtIykDzgFM8/3NlaBvJ4HS7ISKvWhIVD2ghP2sgfjAQtgw8K
-Zf00nca+5w5q9X0VRuDcbN1mp3ZRQ4rfSF36a3Se91pKc2eXTh1tbNNZIEbGTnG7clDnIJ7q6ZrM
-pWytYwSiPe9iQzg11nK1ct0O3JrHrKr0C4eeiOY5GMxTwleTFLctYsDfTagut1bi5J03Qqzoj91C
-/+0O7VmIt6liV7yb2DCrHVO8Ovtq6axcPlEXKE+KS2MUGEiq8POtlCy3G6V4ycvFUMkBKY9+uVE6
-KB7lFxzFUCCaOsga1vh3m4mhLpCLW5oECZ3WGDzbiCY8BKBk/ga7dGDehot0aa9LtDxe1c/Mof1Y
-cb16CfxrbsDwAKw/sWtQMTmjC7kRd+diNt0a4g+AsKH9UPoq9Pqs7g92Nk53ipJj9qqEEZ+u64M8
-68Xh4+W3gu91eea0Isd3sLEFBXurtUbD2nTQVgoP6RXlUA6VuT+qsAR11J3yFozC9RbTiL40Uw4t
-+OPFt1PFGC7H6pqqgjrq1uqf8nZ15oRZJtBd6WUhV+6uESEHqWAk4C6jqkigNdFFi1Bmg58nVFRo
-RHdZCduEJIaGd211z2d+0VZ7vv1FG4sVCM9h3RR8jqgyiMNAmEEauZpPqvRUkwoTeMDCG9Rou7wb
-Tfy9nPlQlnQAtDGCGj7TcoBP4p55U1sLgL8/iwGGq+ut0N85i9UTEbo3KInLIqLdinYugtiR043M
-2sqqgo/fwtYbYl1tdfiwV3dTODEbmxQ5GiUj3mGCQAd2fhqJrUOPQy5FWjiZ00+G/GpnTHRObUMs
-94RlrntQmBvrCwiSbZW14PDIAbU7C5oJaa6Ai9up0wXsOfcgS7TblW59bvzDOt7QgmlsrTuQ9cVm
-BzoVCkT4L8B9GOEhuaL9m8hvhcFdcEEnCGj741f7/kHfrrfZX7OlIEyREuFhqY6rqep8PbPuF/gY
-Olzxugtqp64fXDOP9h+v/H5nszLmMyamxjbzqNZf9o/lUzublUgMdjYTktTLCG4rF6+sPunV8vd9
-MiSQbYMigybO21VYOtHdmhOtj6K7NFfqm1OIS0D58asN3/rMvnl/LnDfJnyAHgMI8jXfLucYbugW
-Cju16bjNOlrDPh3H74hrxPHj1/f+TBj4bNhMIgfuwd93fb3/vD6kXE0zJdwNYa3VF2QwaLGQDyc+
-BE9UyQ3t3DMj10+uqGPEhAIeacLWvVBQYddFz5mXsTL+CmcaXW6Xrp3EJs7ucGt0zviMnNohjE5w
-EEI42D9t3cVHJkIYILdE46anXnEX2cpA2u1Q/j+2IiOI8IQXhsFX27zLBDI5GQXvcqntGq5z58I5
-muozq5x6f9iVC8hTTEGBE//2i402PN0sZpUOhoCFtNBdjmmsNbuJHisIPr2wj7fIqc3oqi7sAdIy
-otnmhFlVY0azs24RMbj3Y4kxiD9Fka3s+pyk5kwk2ZoUrSfN1W2Vt2jgGrEdU1K5fU4OjPK4EVHx
-mgDowQ/NoK4s8sppy3UcsdINTx8/4onwxcWACZkgVjLlWXv7TpfQWXQTkqiHpwCKTmGHh3am36oX
-6b7OQ4cuhG4cDB3C45nHPfE1MYEFbcaTieBibBKVQUuq2Kk56W3YOy8awuuUu1gMR4aV9fsIffTu
-40c9cRrWhIzRLLrgStqGlnZ0Ozh2OVgW9NDAxNly3yv6uYnkJ76ireHoZglcirB+3jwWdjVRWq5n
-LtQyMcF6z9r0oLetUPeiW2sJ0SKJikWfumee7+TKXARI2BgWiF/6208ZwvufuoIZCVU2qM+orTL6
-O1mY3M5MxvhJaIfrOqLkDM8E0hOnhOVUkgu8rqG3rb/rn0DaoHi3EZjyXjM5XbalOuwwglXuXRoo
-ZwLaiUfE/U9nfgknZZ0U/napOle1ZTQLHhHpX6A0MMsms0F3m4Af3UtYys+ZcM/ZFZ94QHe1hmd8
-kEkDRd18UvTSWDAPnJGEbxeoDWwklC3hIVIRKXx6j7pQPlyGbDD1Bg/Mtw+YojmnncQDhvgBBW4H
-jWmszXN2b+9PwjpwQWXGqonhm7V1BFQHhyEeNWNgFPwDbrMxg84Xp8OZTOzEKqs1Hv8QPHHQ30TP
-HrlKUZouWLQNRVSK0oSsE1tndv2JVRhniLU8FoqaivnZ2zc2qfEwkb3DsYAzUtw2eOtUQdUoXXxm
-m59aiIQSM3uVO46d8HYhACUjKmmfesuIMWlSaI0PX/GM4fD7oPh3oih2WUyHJ/vZPI1GvjJOJT1O
-Hje7JHYm8y5poX/ICdH/DoG1nF8+u+Xw4mVWIwx1c52ssgkbCaxu2gckzLouqdhiR+7lPE3Bx6uc
-eDDbISwaKnebRZn39u2N2LdGTVZTibs1iGEe21fMkmn3jt3Hvpyic7N5Tq9HBcAcU9K7rSn+oKm9
-bdPWgYGgtMB/TBMFXA0jhDapmlb3/dTovz5+xBMbhEdkihmXDJb/7ypv7PERrfAi57hMEO5WgAtV
-t3x+v2PJQ1/M1Neo6258ht3WQuKO5sDrczW8cyb0Tm2azWeGV75PC+hEmdwkNlclivjN2Q2tGLep
-1T1TZ7IdRG1MWRDNjF9h7LsHd3SQ4GbRBILXdsXh49d44suRbWEXaDKqUNBKebtThkRN6pp5JV5l
-GdEzCiDzGWWe0e7zCtcOz8pgFO0/XvL9tcJcCl7lCuRweW7v7HjUSndkiLYX6uVyMCFl/cgVAMkr
-RaM6vwsR8AqvqmPauR8vfGLLOLh6OhxAh/O3tZpl7CX5K3aD3hB3yk1qGoXXSjl+Oo3l8VxsLzX0
-Vjh+b+6vSk5I+R14X27ulAdkjSEeb0ppcxTyvDDPbNBTW4ermWbg+kbhzL39fr3ORCxoqpSlzpQc
-sPaCWpcnCqb0oZ1eY0c4X5v07A46ufXj51+nzWtk2IjD9jHXrfVPJmIntK4jy4T8D5fpTmD5tKuw
-VDxTop7aoLZGSUwKaVKpblJmLJ+kjuE8xGQrs70WvsIPfcLUE/ptfUQm0h4/fqr36QdxmUoan1uq
-HkL126dacFOpUAii7iliE2qkEQFJWqCzUL0wyjqzJU8+HZX+moHwX2dT7+NOBTUUlwZcXEJ0BEwH
-BjRpK3fKj1lhqu3DgvrnXDfsxKLroBRqH94o9/jmdlg0qMpyQWszM7UNnAoZ1wwXvsLbJiqK4NPv
-E2oCdqXUqlwN+ibAFGOG0hZrHWRRHQIjP1mmOn9G/2XXEyrxedTOVXZ/Z6O87QmvY1OorhzeKynE
-5hNOhRtHFvCE53L2il0ydOr1OOEi5iZdeQwd4COR1O0hhh3JHEAFiMqLZhtQsMAn78z+PRF0XMxP
-iOu6RYDf5pjxCDuTCVEV/Jom2jFMFxpfhFv8x2/59DP/s8y6rf85jKnV5YMaMgEnXJbJ8pp+Ndhi
-XKRh+oXudrfsZuVCHcHYnBzXWpkDR2Ne7jCZJ1XPzKo6tb/44v8brkB42BzZCkO50DZ45Aj+uG/A
-WP2jN3UGLUyNLoeWOu3jhz/1immAc6Fwfa6D3d4+u2EtzKfAmtGzTb3Gew0VkT0X45mnOhEYSNuA
-QzDI1/mW61P/84ZhBxv51FMsYKNXv4RpBJZYa9Erw7fP5QMnH4jCa3Uph9+rbl4gDsmQBARZR8Mg
-8SBsYAUC1sRnso6TqyAsIfDQ/yCIv30gtE2h1BidyqjgKHH2WBUZfUC5hQr64+9z6s0xwof7leY7
-DYhNLt+Q4TsIW1lI6dS9Ajs9sKvBvpeohr/+f5bC/Nlds2vmgL99pqKd2s5V+Ehy6uStE3YxKKcD
-lRdG0Zh++38sxsQr2nDk2WJbimNpE+MQTdY7AMLs+75j+CUs8WDo8mL/8VKnvhV5Grcglsxc85vn
-gsdkWG1B+0bXzeIeOwvnxnIG50ysWv8v28CJUbK9toi4IbZ+zGU+WHOysO/KFu6k18MXvSA4jk8x
-Xaq97FH8fPxYp3YGDT9oijCWwLE215/eIRwvLOAzPLVKP12QyDUpg8JI7uMzH+v9s9EyMdgUXHy0
-M7bPNhrCzVt41auiujnEYX1fOc0ldDnrqDbJcObBTqzm4L3MCAXmvqyUs7f7cOx1hYnjQOzmqFiX
-UeEqj4x3Qr4j+uUOm77wTNL5fn/QXRcMzyGP0FC7bs5yolqQ9pUKYTs4+4sUy0zfTRsfPv5cJ1dh
-0iHHmH4GuOfbp1KUwZoWHJpgteHCagxRcwON89xcpRPvbs2FAFuoEGg8r3/+T6ClZY9CyoFbXw7z
-cCdEuNImUP5eGsVofdfqMP/v04/FFqTTpOFYD8qzeSzdypskiqkLcBkjYy+030lpf3JONd0FigKD
-sERA5/LY5pWaguFEuQzUeJWOk26LfwwdZqP0oWMgUlP5ZmdO8/uvRVw3GcFJYUmKuQUF60Giwhlc
-OH153V/ZSxpeq/2oj5+O7sgqVJvp5TbRXXM20d0p4PxAAslwx+iqXZEVf5aVbtZY6blRWO8eyNIF
-ZbitUidrTDDfHCrcfhulVxEjinpOXopKkbusiz/do2cV6lPSiXVgAg/0dvtBBoXxbWM53GSjXntZ
-6WCHM85jpl8PvYS6l7YuRDq08hx+3C7rs1jZqedcwwZlOREE1PHtL8gpd1bRLwymJocvkzR6fGUk
-ZvHZ+5/rZJ2zxcXMzUxofLuMikV8b6y9PKRhTuDq458SovHx47O15tpvrhTanuvIkBUPd9d/3y7S
-JGXbdK31o0cnLCvl3kqOhWrvK6F5TL0hwUH4xcyGM3vyXYthXRXBEb1dYzUN2nxD+IQ49k7Wj6m/
-dGPnqhh2WhX6uZUGy/L88QNul6KBrIJAMCiHtisq6E3wSPCWWKCHogy2pugGx5PQ78di+KLgub5z
-ihBCGbdp8PGi2x3yd1FwfnBNjRRj299LcR4yx2qKPTw8sns0AvlucWbnzCrb2/l/qzjkvLq+Dtfb
-nDeA6AhLYB4tRuo0QixR1n4sTko+2vJzpIkTi60DQ9CigXozJmMT9ZuqYlSZuTIS45C1Ruk8cKFx
-Y05d+MmNz3O9WWqz8U0rDO2lZin0iSNChiI8YLDy2ZRtXYX2D/MxaK4RSTZxse9FDPseh0aCjHkY
-QY4B3BZ7/9mdAEKLEoI4RcuJJsnb84XqYElNC4FimEhJFdvGuCzmn428wD9vVtmcYgoSfAEmikdM
-QUMP76wXNRMvHz/J+w1AOwJ7VgdrF5pK9uarTLnSadGCnRqDi6zfYsLTIUeku3pL2OfGJf3duv+G
-JRIMFqNFAGQCyLSdUjfik2DMA1AWSDpOMuSMCoJtu71qlKK+gYBb7Tur748YwGr+lKTaBU65+ZnY
-+O4UUyMz90TA4HJWHefmiYsal/Uitp/dBBVAjdWiP1nZuWzq5CKwPHinwDaWul0E6xeshKOXbK4L
-d6fXunlZMq/OPXzq662sGINCCByFhZiBsokVfZ5PbmxNo8dAvBj2snS+4Z2CjNRI4zM13uaJ/rcU
-WS7jWsGxGWn4dsvroZ1kJcmtZxUIwFseMOhzRXwuSPxdBfzn78MwBnPLRliqCiupMkZtEzOKo0EV
-faWryznUbkvh+98yQAzrAD7KVXPz3vDOGQDRFKj0g9kc06mer3CS62/MPjIPMQUz6q7JRIyJhmvM
-GKSCWLqPLky8W3w+6bmDvjmEf3+OBR6wHkES4nf9SKfUsNHDLqKap9xrjSz/MmFpsE/Qt50Zyv2X
-G/bPGfy7FlQ5jY0DgE9u/PY7GkaB/fPMd4zT5rFH4IN9ln5YwuyIbfHRrJoffTL+6AUjdIzwa2n2
-zxMw9EzWV3fZBd705/oUa6zc/CAucocL3dWg0m0ZQ8gsUOY62OSronH1PwUesNll2QJ13uGfWWb7
-LFkK7QFfuOTXkuBIfYaxdOLlr6NsVehKkCYw4Hv7QsJm0XosQAcPehg+vlZVBXCIZVDHaR58fFxP
-nKE3S60/5Z8aqxazFs/rtos7S7nI2BBXJKP9508qq7icUdhs6134dpUGaWtY5pyhfoniveZOyl5q
-+E39P56FskqAA4JEWJt95DJpIcd+jX1UpekPlNHtjTIo1sPHq5zaHNA9OBL0RwBwN1EH1kUkhwJl
-dZaI9MDY1thGFSKiXWRE3ZUqcXbQeikv9SEdvn1+ae4omGUQPt4fFOTVpRgL5IU6zbnrSZjjK7MR
-lAvk3uZdgbMc9mmWdUfsP8cPfL9NIM9Tb0FZIpkmJLz9gMoIvqM0KR4ejlFfp1lZHWO3PQe5vH+1
-DjAgn051VAq8bb8+VuvBUmUxe0jzHlTLfB0M5zFcrMsBFxd8W7ujbTSf47YQfOhIajgG0GbVoOlu
-rkU0SCNldzmjPsWw4NmVmIMfpdATy8dmVsb4NrYRIAw2nenTx59z3Slvw4wjuLcgNQC/wKvZLA2D
-BkFZxtKOBSlbn8J0V8m43jHvCMFD15zrPJx4vaxnAIXAS4bAutm5s1hCI9LwxMEIOfOnsrKObtEr
-wSQzeUTw+YjhnzziSXxuDuD7eLbignCVoJeye7Yd85iZgwik8VnE2EjxM7VSgsxo3b3EZ+tMPDu5
-FHU7YlA8Dbm1325U7IRGu1Dwyilz8Hk/xuMgu03kgE9atxp+fPwF3x0LRu9BqrAMdu2K2W8ubWVC
-Qu2YCDHMCQsPpcHmSmbMT/t4lXf7ZCWsswQBFLIixeXbZ3JDeGcLVlT45RVOu5vHOC2D3IrN30jE
-HCzRZHpu3PC717hZcvMa9RwdoMNgAx/FpwyEkf1JbdEFRZ0PZx7u3Sv8y8aH6kCCBX5tba6G/2Pv
-zJbrxs4s/SoZeQ8V5qGj7IgGcA7nSZwk3iBIicI8b2ADeJ2+7qeoF+sPTNkmDzNJKzOrwh3h8I2V
-EokDnI09/P9a60uWOVFJRiJSdG6HAyJLygCLUPXOsHh9FUobdOPpdbKqEuH+8hESLjpmTotZ2ct7
-a9Mm40Jwk728s/ddf8vzF5rtCy8WrxaDXHcJJH15FQxaGugnFC9DFKkfJ2+EnRQPB7PhjD4counj
-WL/XIXp1SZ4YZ5dVvb2Kt3ePfYXmGJPR46dI+04LJ2LMrcCrhXKuEbB05rlija2bxebtEbl+/S9u
-lLMZO7VVfshF0Vy+vNFiksOo5vCgxDb1h0Bu6j3jRA+Tdy6z28xkznh5nZ1lhw3jYLcF12nCu5sq
-BMHhfz08v3/7Zp6OJG/djfHybia7TzAAchV9D2GBD9Jjo52S9hKCQQmsDd03/6jzD0nR9+fbt6+9
-e/58dYfrwH22/+IEXZjdStZS9s1ABmjh/S/OiXP4o0vr7pNcX/hn15mKiliIiuuYF9Fei7v+Bl3z
-YfTOF7a7wuxeZWeFwZWfFcp6N8sWREhAfmBQBc077/Kro9LuVdZ34tm9GGmnmdn6fZ20m4c8uHq0
-9u5vLt8DaD4xft8aFjvTLnrmYtZSLtNukJ8GxBD4N2Runi2Bc02M58E7I2Edy29dbmfK9QBXMn1w
-ORk8kP3qf6n8w2/B5c07l/mVCeP5q7t7Pi/7qndIBF3viiCsgHpRADoocEM7vN/73IfXRAa994W9
-M13s+qCEazResl5zDDnb8YKlm9vF/3J9mvjnfXjPscAnc/OdheW9729XY2+Q1aEX6/c3Bw/LVt0D
-jLXpt8lpehD5xd7gv/Ng17X+je9P35lFchMrJS7D9SaToOR/pk/wZ0BG2zuPc31V37rQzpRhKhCJ
-EpqXvlaR8D1GOCLqbjgcc+e9e3pvrOxMGq6T9W61vmiu9WmI9lMikxsd5lmVk0jyXs/5qdT21n3t
-TB6Zq+gWuWO/PMDiDFxD6GxBwQXXaZiG3/DeMxGr/rf37vJp+/nWhXfmExmXIAVaLmxc6of9TX3a
-HhoP0TkVR9K3m/v5qjpMz4xz6+qdEfPe492ZYGIxpXa9jhiDMUMAA+Nz3GeXF0S+EzSbahOHbuAG
-70m3X9VbduZPfWemmfUqL/r1xaAHuU33tfCqDBb/MfIbHm+91f131/FfmwDoCSLmX01z+Gxezth9
-7paVug5ZWMQbjffDCD12DmbgHZUBJL+L/pxg671uzzz2Dt55yr82rz6/9s5TJlZmLuiRsFcJ5ca+
-KbbJVm7nMN/2B/r+e2WzX/tKaSnQt0BXR19850CQkVedzV3T+x0h8KqGCZeUKnN+HKouzJaLt29t
-dyJg20/pk3qHYSD2R7fw8qnaItWjpDCXQDGEsSUmiXBlrUtBrc3LO3POOqc8f0W4FApPev1YkVyH
-eKyXlypc3Z70EYBWhFn9qPaqCl2wUbwzh+4+vfUqJk0sTgOraXa3tGICqwYLSeqRwJx7Rvakc9iN
-RR+os16eZU1ZXuNo0s5/+ClSxOFYxaadPqi9jp9nu4mavISub0A2wp1sNsSzMqeaorwgtb54byzu
-nuS4Qc5w1G4Q5Fu4sHbeA6A83eI5yhw41Vh5AREY/TUZcEQpdVZt5FeFNgpyX0uH+FqK273iE5FY
-nhfZHN1YohI1OQLjOB60pa1fIChpQQ11aeP6jQo+6e3n8mrzTduV9pitUW1CGkb76uWDMWFpVMJx
-YFlq4wh6RCnimdmQ6NoknHpwr6RBW+OUbQGdjvcdzccvce/FbqjRIFy2WWPY7xndd/eX60cyGB90
-uEh8BWf08iMpZDWlwOKnANJCTt6wofswKcrP1P7JJJDN6B7Ojc6ym47TO1vb1y+bwZeGQo2SMEV6
-Y2d1ItBVkTMukaAT7l2LfuNakEF0RvDme0LRX7nS6qix6cRTVUDO8/Im434l33n6QqpeZqOmwPMU
-1nNGaCitqse3v+TX7zVVTMpepAfg2VB3u/Kxo05lTaJV4JCIsxHdBOepjd/poLw65PC1Ya40UGXS
-Q2YJWO/42SsW058wsmUYg0hJIn8CLOpnZWz4DKjyMB2WeuMUUbHR1cw8oaFfPFrlrL0zg71+9fgM
-SG9W1xJKs91i27yMMq5b3i6XSGd7E9eRcmnmKrJATxCJc0CKMYkuP/x013kMow9qH41i/cv7Lq2k
-NOoiwm/f1wThzGa+LUvH2P/xq6BvXvsFyA4wzL68SixH2lNzNpL2AtaTQCTChmFq//DzM1WDG9Eo
-rNGufPqOn32H+WzkjkAbEqSyqU4Ks9fCVCGERhIiGpbDFG1/9K5W2QaiSpogjBxzZ8zos9oXIGmJ
-iV/S+DCrleUgAs3yziHh9YTi6hbWTW6Krtsr3SHmX7p6s9sHYGKrUFWJwSnIat9XXUtBtGFJAmKn
-fjyIlP67Kus/vkz/K36sz39ZPfu//id//lKT+bQqx3b++NeT9EvHd/9N/Of6Y3//Zy9/6K9n42Mn
-hu7xp5P7pv9pO1Rf70VaV7s/8+JXcKXvnyS8F/cv/rCpRCrmi+Gxmz8+9kMhni7HZ17/5T/7lz89
-Pv2Wq7l5/MvP919Lnk7aiy79In7+/lcHX//yMwUxnvh/PL/A9789vS/5wf9d3Mf1ff/6Rx7ve/GX
-nxXD+rDWqlcpAPZ21IwUmuTjL3/lftAN9ghcAQuijcz/55+quhMJP+Z+oPvDdEZ1Cn81dT/WWd6w
-p7/T1A8mEp1Vv01WDPOR+/PfPt6L7+wf3+FP1VCe1yn4Mm7oqcT7bGfEysicss4r+Ect5G8773gX
-K4Tzx9A/HWlZyTm7tVluSDQd7oGcWsypozvpp0Q55ZqPZZbuLbANHfbqtNhkZM9V7xKP0qWEPTso
-zFRgYrp4nPO+uLQr+n2Xyeimd9S1VWWr4Pi/hJowfYzJTi5IXcuIXiqbJj8ivxFrjFHUxIiDdTCd
-TdfXRbanEm1HFqsd15gahPlxmAeH4D0ySBnk7dint16pNc62SlQQhoTqUz/UTUU1QhMUfUpEsQPB
-1YCXKUD33swj69Amtgktv8JEUX50sojUZalk8ZEYSdvwFa0YLyhjiyKgdezoB4TtdNWplQM/8dlu
-ON/apJ0gtGpeeYxVotdgEOvyc0OQUr6vNnNEPjqo5tnXux6xUYVs42RcgAErWpfEhOLPbbXROxjI
-WzK+vMsERdyaWI11HkllCguLLJ52CZrBNtOwasb8dmp6t9hfBlPqWxlJTq9NmRe+A5ybYFUaWQj6
-Rn0OTIgnn8lRE9o2hYdAGTDWVGIGh8qowqQh0DDMXC8/HUkAvGPdMsaQdCFTwfpdJ8eDsnJRyOWb
-7KAluerSEvDSN5Ul0GfVYhw54uhN+21wiXRjB2ii85Al5I4toWZxfw1XmIVJ2mp20nVmlvn4OIYh
-hKwAkJQwk+KBQPfic63HzWWM2Oi+hIngwoNturOW7gGay3r9BIlWN8Z+5DXeaUt3l/4Ov8HcgKaf
-vJOB2hkYLARW3wxaFd8Sb1IV32277KIa+8HatqPSdwEZuHl+IjW1t7ZkYfJbh6LPB5KoiW6HogVo
-3BdEeR6W4FLKTV1ZDoiNylUusfSlbJIsKT+5nlzmA1FDtQ9LN2Z5ZSeg5+BySqDLpU2sAsATt1oO
-J7mM7X5BHXYh6cFUbgtHG7qgR+PZBilyTwLdZJdeLE4nN0tMYrpfAWX86mSjzW4Papx+pHfapIIu
-Q4LvM51YVwLtJkll0OTQKRNPA8OurUmrs51s2Ki8DYSUJ5ZR7HNmFUDPAAxT31DqdgiKQQFIL/s1
-l2+yht7bT7WutPbsNnapm7ZWfivo2QEBTV0SngDKktf2bCL8PtM8n1l2doHMK6sw6R8qqJ395n+v
-CmpdJp8t7n9IBfXvBfHZgsj3uYZz/faK+DGtf9qjGfn18aev9U+XQ/F8bfz+098XR9P7QEMLBQKS
-B9JAGC9/Xxwt5wOnB2/d6NJWo0zwbHHUnQ+oKvk5zp803HBN/2NxNIwPiDNYF1WsEYg12CX/wOLI
-pRg3zxdHlmUURJ7D3p+Fj1Dgl+OKvyRpDXkxWc/IEkBtnxmDhDeEU9SgOHsOIpOEcBL/zR4bGtm1
-S+H5s9v1ZOKqbqnSShUQ6bpL3QOI4RNfj6UNuFrc3RNfqHTnS9Srec/+ky5jsllKY07u05w6hnkg
-AbcoN26vwhIOrNGS6YkKoscq9kmdLSSLUdGNGemIytgrXysQo5EbWDrRDCDiHauK7mRVLRDQwIJ1
-R6qMiMczSe4FiVypA+XdLgblYVbw608sCoinJoqTLnSqGKAUORISIEcbjWHfefzG1BPdsZsNACpU
-MArnRWnIb0uJgjwwhJveEurHpLbgdtDIqas9N+Cwph52qiEiSPJOfDZj+838HPzTF5XGc7stsyTH
-/lqk3mVKL/8mqrvuJo1EfQl7swYJRrbkAZUafiomavgys7X2zKELesJT55CcqeBVB63LI2L5uuou
-y7v6OiIBXQlK6JsPxsJJGJpsl3wTQnQk45NXu4KG1nYjFliAKrCfSOcFCz2tZKX0PjUSk5xMR42+
-tkbVXSyq0dibwp2VYQNSrMS/MaXNuRuvCJl2kvpIUp4ZHeeu9HTsyvV8A0I3J1TSI5wgUOxscNbc
-5zw5UlJcYty+bgAU9UZCCx1AnASE6noIvl27zMjtd7fWpOq3jZZ71/VUJ8HUFfYK0hntY3VG4OEn
-0zQczfYsCKeNSXoMnE50lzam0IpwTCU7gyMbH6t9x86DTRysgba7nb0hPY7ANANStwtCxE1xkmZI
-QtjLjbj1k4L9jq8Igqf9prDcMtCweB9jG2B/AaWKGqCwy7gIgEQoX+KudD/WdQRxthsS9bxK5+Wi
-8hBZb1o5iXFfgXH1FbOadl2qQw3TIoXh4vcOYy9gPwvAChizdUIKJvgvvdagV4+tvIEU3n9W2twi
-NXuytE8oyNgStfwGCdJvwjSNFqU5GEajQG8Pf/PSls585pjlfNwjb+3Yu+XlZSo8HdykKFPHN2sn
-a3211NhhlVSMWxAS+fJIAAc2jzhXlbvBEeMtQZXY3J1+yK8qgk8uayLU2RDndnQCrKq2fVUqOq2Q
-pCqJTIZJwFa4Kvut1jltR0gk9Cuf9bX4aANMetB7Ycxh1mvOGd7H5XOkxgVqcOCGV0DjjAuJBVJj
-41Xop1bmqJRFiKCHIzPr8ItTXY8f3CXrvyB1Mc/BgbOTrBWFaGTRqjVSxlYSPKg3drSvK/p8XYJX
-uuq1scQri6vzU5uRdYmUo8tvs8iciqCKpvm+B9rSbshfN7+M7oDTD+oev9glevyQs78Ed6QZPGeP
-C34ucYN+8txILhvhLNrpsFjkZLUoSYNUcfGCGS5EFDjgLamIMXdzqJhTxxhB/UAJrddxfidQAoNu
-sqFoJoRfQxBXU/lgywTIatS3k+PXRMVWIZt/NiCqA5uS5+jegTTyPoG5EkxcSi6mjYib6caOpX6F
-/T/qQ2XKmtOyqCp42W2VMmyHrJ02HaqcIgCfzPvb8E8+YrMtp7DB2nheZl0xhF7R2UrYld0q/Dbn
-DJh0rzjfpqKrpz1O2B6UYa2RY5CYIgW39+8g6vBfMYjaqJDLZo1omJme0qgNgqT2K7W/ekqkRk/c
-+mMFgPK3YqnbLK4AX47C0P/8WOoF4EQTjHNh+6+yqRvgQVbAck5O529kU7PYx0S8TixnL7Kpm5TD
-md82bna39ATjnv3PxVTDFDGT0Bl6U179K2VVdxaLXWOtFYf/D7OqFU6m1/CDiOF5CqwmyQIqV2XM
-EvidUXSw3JPx4v3Y6rlFdRnmtpLc/pJd3faDE1/IUbRfqTbJS73qxwaK079wivVkS0LqSbGxSCTf
-jbGOJ6MbQh0e/LcfirFuqr46T+fKPY/UPiPv/Z8MtHaKVl02C1RHylW4Z7ywWmr3qCwJE0+3co6n
-W89YonI76QYu8gRF2/dwawn0td/EvRoVwLLjX0u3zhenhvcB+/Hkl3TrTrf7A5lokuCnWhqflhwU
-bfAi7drJzL15sRI9KKlB9FuLrHnYL20uz+fZNOU2G5dlCFiF/4QMbDvN15KMVosqu5TPk7DBw8XX
-g8MVXyRhp8BvM3a71i8ZFf8+Sz87S2s04zi7/vZZetM3//V/u1RwjkbdWz8/SX//2e8naZ2C8RpZ
-9qQ2JJJ2dQ58LzOb2gciHZ/awxyYaTn+o8qsOR/IsyQvEF3uWk1eS79/qzLr2gd68tjJ7NX6R9v8
-hw7SCDpfHqTJc3FRbdgu+YEmvcG12P28QFN0RjlGniwD2A2uQ3z9bN+nyiD6PdJtZbdNPTaC8CbM
-XA+wQMCN1YzW8iWt5SZAerWSBex4yPZmejhAMV07Nil3zsA+IKqd1cIxcbtghDvL2Ms7WzzJ4rFp
-83J1GCXiSCwQ1Xw+wCwImy10ao3keMx7ZqF05Sc3q5p7kaRsVglwMiT0mqQ+mCPCGzYzfI+LHoBB
-HAxxHz9UBumEftX0aRwY3ahQy1WX/hYQgjsd4caU14TDwCxzFTvu/WgiM3s79Ol8rzhE6GwI0+M8
-URaePpOyOSkUnGuomftWYY2wF8ih0vap3BL8scgu011/Ks0kPxlk1sV7LWno+qUOZDPOQd2SBX61
-qvujIBGdc1qhivf2HCvyxN1UAnxFm5OVW4VGOGx1osk1DYAJUUFdKJXJm/cyVZ270JV58pkTqnlZ
-Sn6jn86KkQVyNopyI7SpO1rK3LpcKs/NAg1YMbn0GT4OKo0W+UOpMJxPUaHQuYtw+e4RZlVfqu5S
-fLKxJiz8nsL7bOtp8bDMTjUT4k/LcmPN3TwSfc1DpbPQmOH6BRJonKSSfKxsjNaY3sE8N/se7I6I
-lkdiSe17z871+y6JisXHu5Q0W1H3s8qZeHxCvHpQMGA3jXeI2mMjtFOzTwJX7V1xlTZWfCBbrc7O
-QK3rX7GmR04oTWPoNqnQGy9shS2RHhtdgvKT2AZxWoyWLsielKa7nZJ+/JzoDcdGfYBPt6Je0wtQ
-wiRc9zN5mP6sCOVGLHMKLZaaPegZGbunDufUyW87Gu/+XDnVkV6MThnYbQQFvGqFBL0kHVoZpaHd
-RVkqE2o0gocQd0WXMTYYHEBsmpp+gNBLE0NAymGt6efswsiyjq/BrWEo9SrE0tClw0Vec+NxTmys
-3Mu2fZWq6rZIBKVhLxf8F6OtYtAcQ9cEcVwpEeh5LVuJqzFjEUR1Bj3drgfbn9pB9fwCpiJ23Ck3
-RUitBYodlE3rs21WarYHzy8H45GQJ0T1YUya+KC2x8XzjVYMVMIXKdPNXMvxmxyGGsrJ0mm3nHn5
-LXS2rG9Nj+B9k1lYq4DsjMV9gyw9IoWmYnzh7BLnNVF3FLWHRD9RkIg4vkzipfMp5Cw1oMDFs32e
-pHsaeRS1NnFh1iRgYUj7Gs9DnYaWWmmXTmvkl9TRmlB0c/Igem/Rjs3ac25a8D42HQ9Lzjxq0T8M
-bdPdZ5HdguYbXfvW670GBDzcRcbanKPRACmsGaFlV+lD26sF9QlAmEg009rxQo/XACv7EmXXWtuI
-w8WtmcSeLQG/Ulff1Rit4rfnCq11pn1W6v5zFVqkD71wbuxM23/ARvFKFL17qR1p0a5JxHNmb5MU
-Rrlp4RRW8Oywi3gtCgTh5NUBhSdYJrHTgFroHfcmo6G6eftB79R+WfS49zXD8ruxY+dB/05jx698
-nS/8D7vCtD/H//COVvWVH+7PUTT/yr0+k26TE/hy6P4xOS4bm+el+x1jwi+l/WfvyR9QGWvv3df6
-UZ5d6k+RpK9KsWediVe3t/Nm/n619jsy9Fdho3/URrAOgrdubKfl8kdV77sb03U6/YcTCF3Vy+/u
-d7oW1g/92zeFsOPlVf57fCXqjqvpd/pK3ruXnXnxdzpxXmnuXn4xrwAiv9tY9CRpfuu7WdeBZ2/v
-n+qeenuSwrP/8tp/gpL97bmKdKiXV/zTNPvr2HvrKa+f69lTdn6XE+49J8Rudvyf5oRYZ4m37m5n
-FvnTrB/vXHdX1Pi7fYy/dp3nHoSd+/uf9D/saqb/Kf/Dv+tOz+pORD+sDrbfrjtd/tf/qX86vx+K
-FyWn7z/2N/GG+eGJQEa8m4Go/XnJyTI+kA+MQnkNEUN8v8Yg/E3ZqHkfUJCQJ7emLpJeucrQ/15z
-sqg5oY5f85+Ic15zuH9AvIGB+OVLaSIHJ42epGKyxdbgtp1BO5pGbg+pl4QVJgQ36GzIlhs56fZj
-Pg/utZBGfgfmrZeBRYHpXOsXNHWxofVT4LiZ/OJm02AeeWOcY4NW8vikcvrkLm/ApPqj7kUnbgz1
-Y6/Tm76GIm2O7SWciYGSTTTLTwjw5IWZLHK8yAyt8A4HsnmK8xg+s3rcNl42hHmZUysmTtO4I1An
-P0NuYjZbjepBc9PqRZI7ATRVbXiQRaGi4BDDkVIOTeYvVWzfZt4wnY6lZWxVJdLmkHuNAEAosyAv
-eTDm0nenerhLOz1RA6F742c1U9MqKIAxu34s2+l81KVtU2oQ2Ve68EV36HXCa06loK0QYq6Qd1nV
-kl6fz3FnHpdeixJtiadR+IPrzFR4Jiko/iYR3VwRjdivwKy0VK5gxgVxgvkuzERpPMZNNx+7dYZg
-UENwSeu4W+D24iZXxYb6updBis6o4ehTAo2WeL28CZQ46hcCV/ThmKo0wdegk4BRt5Om+JGtewRx
-qyueVkUO86XKveFS9Fn6TQyDPBSpnd3msExkoDW2UKDhquYpycfdCc6I/qK3YjSNA5k+R2Jo0z5c
-onTB7+iK3AvAtcoVQaxpnyM9s0/jyugQW2q690iQgsh8maa267sOyZDh3KBSCCav9K6kMcfeHlHR
-3vncF03sl33hJn6qewDa01KtVjLTojRbEu60L2qTOR8ZKPUA19aJT7u+4jE2+bx0YIGhv/vwXrXi
-hFGOaL3MR1CleHMArcYGUfIbN23KuxzOYOQLIJfbDplxGy6xV31BelhHe16e1F94y8qH0RPAzxtF
-F6PfmnNxk7ZRjdSw1kGCaxr08lHAvMzFUpw0iMlXbWMa3URlk8EoryYq/BNl0vMF7JIdwq3rkZa3
-SbGdXNnHPhXdFIJomnGD9NyJhyMl1/vmuHK6T9Ed4w2n0vipW1LUMgMwvSA1BSl1mSFx8Bot3z6i
-ncXFCqM15b6lLAhjDNimERjd3MJrEcHfC8xY7a7QFgCSbSnIBLGTVlj+HAQzfiQsgzC/rClM+J5u
-QWL3YpKRUFMmJrdQmdyLGVRxEcRKpBxLW0OKAzwtv0oHJRuwnypKuYljq3d9qkWZGubxMn2EDexe
-KUYyfCNRmkrDNOTWca4bdGuqLkWyUQvpdP7c1vaXUVtlP20snTu3q3q89pUxUYtTPcSuTp3daEqV
-I5GYVKGRO6emUZgNS3VbqWmfbEutEFmoMnQTaJaZYzIrKL23QaMxH8fCqyRSlkVej4qZUXOdipQw
-JXXRxj30LHLxF4R2eYBcBiJurGaCN8Q1lwmXq1p4QQP/9ZBHq4a1KeMThE/12UAmxsdI23OtU7Me
-rCms+8j4KGyH8udi6wxFLbEAyODxybaVJDp5zAeS2F1MGguzTGSaVIet/s6B+e4cOlBlL2C5pl9t
-WYBHT7KUwixMiYqfjmMEM3oVa98aAEzUEU2hbKAs2n1gksLY+WUr2vMxta3aF0SlJT6qv+ZA6Wpp
-+Wo+5f02HovpqpdxVoI1jpxPiElU56hvPIjLnRF7n6vFrk0E5bCMN3TRKUvmvRyvYiZC2OxeAokz
-jmZodmYCusxXM6DtKIDa4qPMexIUGcjWuFVcI7loXWM+lGRokbhPDne1acxF6mFR2uUxyralP4gK
-9rO+zERB06GJvdNMqdo5mEtNu0og63Z+X1R5sqk1YVxSLY4bvvLZ+ZosHhVDvc7mj7Fnl4+TTamW
-B90pe2uRe+OSEXmYS8WyYQQB8SZB0C28zWSVkLHTBilVFVtUOKUyDnIzV7b5IJNRcYJSV/IO5NtU
-5+vSZK2qPxU0qZn31aGhOCl06rRgXAPPTLujzqgQZBldV9tBjJjZCZ1p8fCPwBPOfAwrZh1oi4gP
-7Ho150lCVB4NZ4jto7jP6iKMil5DP93HiY4RCWnRMRoiuK054eKfCytfps04zQ6dm6ajJ0DFGaZY
-jTztbplStfKlirKamBQLmWTczvIyLekW7FWyUq9aQC4uQYbq7O0XKADrQI4QFzZO2hQomLSkKMA9
-DNnoV1lStQFS/fSot7JlQiblVcRYofP2AtOI9M+qWyvtvmV24KOMqjXjA9UpZyOQdiSv3HjFdZtx
-D9IB0qxt+qMxohzL3ZHnj9IS2WU8lNPDki9Am2J3YJio5WBeA4Mdyr24HqaHuK/scr9PrWnZVwfB
-ZGW6GaOsjseouTKjmcR7g5lx8I0RcZ1rxIMd2lPr3Uknn+rtYHq5DF3didS9Gkk3xW9SeY/RHtLf
-slgM802lRk2/nci4m1iaFvQOyP6AIbEuzOl+TfeG6Qpx4BSyd2mawO35iK5VxV/jwZP1Vpoz46FW
-Zj4+Lo453cv11aTQD/2s8a10vA657Pjotd7w/yPXW6j+U58nQtpLaNFohTXNx7mTq0U4Dkp/SSoZ
-jmvgbW2QYTubt7Vu5HGwWgfSPVNp5GNuOdWpl5btsjH6avqoM1OaQSuySN/zEsPt95esMtsgriuj
-3ZetzNyzeKlG/AOzu/4q9D3At+eEJ5+0havsjxK5GIs9Fs3DNGNTc6BJpSYLQUaqHbatywJCeiLt
-qVZ2qhWMWH76g6FTeJBgy+rAlrEsN9Ggad8iGPUtqt2GHLdsGat4P0tTzQqtWJnHTT/Har1pK7u+
-7ZNJA3ihVAqSSkNVgt5Y2AA4Mp5r7I1pjrdEW8ZblKtRdBALFKhkqcF1JwoYEybpwAK7nIlz4cGF
-Dd7uxRndwQMaOnPMhqYyk1PVkN10FEOvNw9VZR3GRE25y0Xv9WlxUGuG3n2yarsLRqm0VzKxVSjo
-vRyivRy73IGRP32ImlfpoC7UlBeFuF2b0ZE2ejj29B/DeakXb79pVd08MlJFu668Sc8PGYE2OXbD
-MIPdbCJX3wCOtO+Iksy+5oOoylDKMm/3ssGBub4KI40tTSLjsztNYxcaRVaeKpNRrauXWu5VQuEW
-KqUqPuIgjrxNFwnuBseTCiFpEM1t5KY67VeHscjey+2UTc0V6OOqemqHPcznSwVN4+d4kdNDRnQ+
-Q9qcmb87fKRxuGDMtBH9mQzSrmp547IEFjWDX2MgV5PKAI+nhX+vTBYjyakJ/Q2XQbaX+eKWXVBl
-tsLutNLMa56rfJR5YSwbEz7TYS1LR/i2NmWfin5h/4AnRyUYCNqygLXsGrdZqmY2MtiCqSzqU1fz
-07RGrAX4xTxwsZ9qQVwui+4LYtqyIBodNpRj34mPDgcoJtEh8tihGjVdDDeeN4rAzeSqXeuQzD2w
-Q9TjefpWO/nshBFEpzagp6X0a2OueAQchL6c40enbrNWJl+abhQl0GnRppsC+mVYFCO9tjaGme4n
-S99/I39cqQlmL4pbz55oDo4ob09ac8qszbDYy3mcSftmWQQd8RZrek+MtdSu20TV232+cVOnYWmK
-7SwJztsoSjekYZcb1ufInZcocFqayaoYWKRsnu2wSTWRMMk7SnfEbN+UQZT08ZWS0oi/mFqsiBt8
-YxVsXvKgjC16bMv2xzGrHgxXKY6deOzvGM/J56UfFSvIFE+NgxgvDnASOGUDj1IxHSxmaTKFAgg0
-fUc5uEBhtIZPsmjsDNrIXTcaliUWEj9cDEZTTsY/r2b0dVyYaQMJQP5idmvjOG6tZAn0wi3GPfZO
-rcEeKs6zrUhq1dyXSrycdGMyVNsxV8VXB2Oat5FxbpqgzXQcR2qGeiIYM8iYzMrxcKekuvmR49qs
-h6XTLuTumXXu7uX1OiYAglnVxpgGxWIXaUzztu8AHWyGzMyOnNbtI+QNo/ySTZp20hdKotDmWgxO
-JJ3sYozhrJd0zmVnb3Ia2ndduU6GpjSHj51Manfv2XH//JfC1XPvzlPs9rN61np0xhGIfZW0bDIT
-vZ26pDKizE9SfPIL8dK8w1U9274c3fzEKPLsLhmW9pZ8ruKrYUWGERIcbZZBog6I0NusVNiIidLR
-efLMEWGKG+zh7Q+405tbP59DF9QlZnbNXHV2qonGbCKlrL04lFESnwjSZbGZmfM75trdnuTTZQzg
-DUQd4NQEQPiyaDlkZREp7piE3jS75VGX5pkTGtZIw1dt81wNkESXcj1tjw+LmKzrGlUCEu2ira5q
-S8j71GkA87597+tFd74b5guDuFm2z2T77zRIlBUhjJotDe3uSxkN2RI2hM/vCzMFQr2UP/qkn7qT
-xBO7K/YaBsPLR8A045gKSPTAakW8r0KbZiF9N613p6dASANeaTIsoaeQ5U9e78urDEVqj2XNCxWn
-c4zfgdftDFW3t1FAwrIgU4Moq6baGsjNzt9+nLut0Kdr0x1e3UI66QjmTlfSy5C05FlpkE44VZ/K
-NjIW3vEJx57bd2gP4jTX8Ulwlg+MMR3noGniStsg41USxp+pOHtVwXp+2Uh0Ba01L18akdtfFSOK
-OLVGFgccTS7RbW8PmR6+/el3GghPH55XFPoVznabTImXD45kykKnP64HUOQ4XcvFZVFYI44GrDw/
-fCnQZ5TsKN+R1bKba98UatLlkOaY2MdkE7XVEk6GsMLca7t3Xrz1634xxImDofdObXHlDhJj/PKu
-shxv5DRI7qpX66ME9cWeEi2reMmJPwoia/1IDlmQlZNxLA3rPfDhqzdsvbxFVgCMRYaks9NHI77f
-E6JCccmQd/eUBSmnaXes6apiUECp1Yu3n+yr2WwNwMHBj+KObGL7qb/8rDfSoK6J8GpELEe5uZ8X
-1bhp00S881Bf39X/Y+/MliM30iz9Kv0CSMO+3AZiJxnct7yBkclM7HAHHPvT94eQqipFaVSj6Vab
-zdhcVFmZSsxIRgR8Of853/ntq3z6quRgUQnXWFEoNd3jOuOKsFhOt0YS3Pa99e98Kp8tf/weNKks
-TAdmd6g8Z4rTT7+VU+mlTPHprdvJSk9OMTq3chKceL1KM9HPcmmY47vhRnm0T3LD2LHcBuU6r5EM
-EWvx1LFfclHgUlLQtTFWabHuVGeK/bTEelZGKxd7Fk01PKpNazyM46we9NSNvqbAj/9dE8cffUiI
-0jresSXHb3/6TiZSQ9Dhnh1aGPhekzx9gbiV3/3Vb4K98NN1vvK6Sz3Wp32tEFORuJCMw6mwitdA
-FwioYyV/QQb/pSHHtfxe3bfN9+8tUIbPJIbfsBz+76U3WIRAzZ8+gIUP8esc5Bd8w1Vavan/2H1v
-3lL1s7v21x/8ddRhBV9YCtj/Kbw3MF8tu9Ov7lrH+LKckZY2WX3B6Pp8a/456rABPODHDMi40viJ
-6PLTqMP8ErCBYwTgIAN9gUztXxh1GL+siD+tmBzSbC5VoGGYdmAhPQ9Gf3rY+rFCYKpsVkzIOze+
-03PPWWJ7jprEySzMr9RikMDEz2q03KRKXw8t1Zqh2RX7yuuMt3oegkPmp/FWeg2E/rhPVpaGj1WU
-ZEV9Wg831pBF1CLZD/hKCamUojqxfKaXcUYez8JhuG9qnITnshM99sARjGaxNig2zbr4plbRRK1q
-dt1nndwm7XSH8LNTPk7WPvG1tRyb57zRxs3Ux+y3VcPy2/Sk52tHPcopaC5bt4o2iAvpAbiAz/W7
-eaz9RF1oemN/c5xIbcum8kKfl93lGleGSauStw5Qwb2fB/Mm48qxxQj64STVSfp2vNOd1gV77I4d
-b4swQ8AD054HkGznANFBK+RhJPB2k6WxF9LGCQNtNP2dmKbpRIP4dax55VJab+wKgzujTQPL1x4U
-65oc4qL4BFrMm8gwRw73iqM8HsIgu1a2MlGW6Csi+4ik4BEuzedUrNzOvh21ylmz4WEaXfRphwv2
-XaaEsVFutZ0oXlhZpho2SMrkgZrKWqM8bjK79I6J35x6koObVvnTWs3zo+56JAFrroHUVjfAdVV1
-YHnsV3ojY27DmXMnhrbYTrXfMVtAEDUIZm7mfLibW3ynNs5jNMmiOjqROPT2aFNVIWcuQtRfQjqr
-n40ZXJtWg3aCsUsUkqnAvDZqzT50WqPWZhe9N1mnbyRTljtf0544z0OIcMctOL27Uk43yGowAlMt
-RziLoDQk5rPZdkAnC0ZA/tQhNlTPWuHuWH2f7Yg058ysYhXEDLXmvjki5IATc0h4JIreiTEookPt
-VnSFoaMe8iyiarCVTfMQe/a89TsU76B9tniNh0Szm71bOuptVs1NhyV61ShnePBQLS+Nof1a5tNj
-NjpPMlA/8nnOQq3pd1IEJ3fZsm+dUet+xLanmsPYwxZacRNtq1AJR44HNfVjuenA4HgXWTmNXye7
-8VFhg0icbHqUqo2XcZ+47smSXHd+kRUoenbuP7WadI0sdCdUe2ZojS3XYxFoRJ3gCeGgNWBJUP0Q
-zCFu14UjUUeT3CQRuwnaNhrtY5VbVJYikdUen4WRwEScWL+2szPkct2nRo4XOYYqdJVHQXldCRnL
-k9UggTkbvTalb+Jv9fN6a6UpXu1yqEgBg7Uy0o9G2BE5ao5E8SavSvnk2LF7O3b0fq+Tme7DUPc0
-TUNay5jEmMQ2X8vB6+Nj4PvpKW5tz9upNp6PEQ1M2rq0vEVBn9Oy24JJrnnc6qbkcWcuWhP0HVqg
-Mha52EM+2A4DU3OMHkiTBtHanWpi+XZQ6IRuqYQLW0tWcejJGtmLQE1lbXPkV8AXuek5jKcGUxLq
-9Md5kXtV2qNunQ3OdRdhdnamBF3HN7ug3WuQTZy1V4J/25qQlevtHDHlBldqt90GdgYuam7rSbL1
-EezSdYsmF4St1xJsgJUSPev9pKCWnF3bJImcR3QbHM4qmwj34DyfpnVctHXNzX+xgRvePCKnySY5
-iCRBwZ3cVD0D9WRgkp0d5l3jJ7e9B6BrFRglY6W4m8v2UHh5sBC6F7N6qTzANipu5/aK61KqnZqg
-SqlR1Lp4ugnOJnhtjCoCtKVj7klA8wEL0+nzQx5VgUYTYqoHuwIowbgy7XF4MxW2e6Hs6I7xCW+I
-CFIsuWkSAGd0p8W/DxLAcr4hzNo3zIDpcrC16c0eBifauKnVW+u8mFGQKvbWIBQS9W9HkrinhM4j
-Ykzmw5bOPvbZNG4js/PyjRyCbgqt0cFg71tdSnQ8dsb7zh3b64a9fkvIqd8Xznyha0l2kbeN3EAV
-rG6duD6lmT6SkPCHdTJ4I5mLWFzHLtMGGejDtSe9CDxB6TKvI3Ic9snwZsTZvEvc9DSSDN5NAegh
-lSr9khpw6KXleNBdHrYqKlr06BaSyhiv9dqp1rWS6opL2bSajc5ZuV6XboPOIIHtmYzsg2gnG/oX
-rNxIN/nYQWUU5X0R97exxSlfsn+Gc5WCTwJw0VxlUx7nj41e5NplpOx9abJED7Klb8CGr/eV+Vox
-7lC+b6AkyCNTDmLswewcRKydnNqdL3Kt2DVqpHon2cRRdcXcQL/qCnS8PnqzoEowIhY/GjkyMyeG
-vk004yYNGN3qGZWUSvkMgArXWndtxJogbqLlG0rCYTWj1K9SbdRWE6vVqs+FeRIk1cIpibaRjl8i
-l9aHHJwXJp/6EV06YXd0r6LKG/eiku4V6Lx+DWpRW2XC3JuT2GhGuXdnw9o3Q6u+uzO8JifN1zIv
-hn2SilYwU9AEdga25kx6z4wZHhpDbw8TX4i1rY3lylRpsGqt5l0x7GnXztjfDYAFkEQ4IU2blsui
-yU5VMTWWsonWdt+xYniBdZENU7XrCNPeO42fJvmqmjXvQ1NGEx+TzKajgHFm4TzXpR4kYVLa5rxz
-bfATpz422gtT42y29YJZB8kRDX28acrcdFB8ZCzW80RP921QTC5x/6hR+ip2qmGBVem7NBDzRizp
-lAt71uH6eO2c3Wa6aO8zL6JNuE8VwN7SNsR3kiO93BZN5Tg3bUJF5LpLpzxY0/oqq4tyGqa9gL5F
-vWzu+ZW1T5PZMI62HTN4GnKzsMM0DeqPsiyTgXEpc4P90Oot72lvOu2hU3Uy7WTHH3QAnXhOm1bI
-B6+VlsAIChKYJ7CpssZmhTbrMjokieZ46zmN7Ow45XJigoBu2hwrQjAp441lgOpXtpVcUB2cx6vM
-LYyYIwiZs+fZM3iuLMplUhWasXLVVaGpEnaRlVbFjTvpQ3ejq2407JXStDna+MPQ3XV+nWsr2k+q
-20Bv5nkzEJusbyfOPK+tnRD0EmCl5pA+l75YVcTnaERgxuzdazEC8A72R+qjITGeDpukI+ATuaPg
-dMiJSu75WyiGdMngJwdXTx3oCxwNqErzhjTWN7kyymPGuItTA5mZlRYHbfJYllOO2MaAqkC9dyrt
-zpybV6fMvb2v+/sUjCEaUlBvjWLezcbU7LVuOdMu9CUvyFNeb8ROlHYPKcHAVW0a35hLv+dp2wG+
-tVJmjw1yY5gj1993dsRfk1n3JvPF49C6R6YZG85thExaaictQtmDPstdqeTe8OgSddogfsxKvsFG
-fWW4UBRFiUHCUSVgYljwK5c2PZfnZOtqdnCwF2cAObNjV4sHGgTKVT/w/amYFHWRtjZEd62gYN3y
-Bj8nWZasRqu41v382NYMozym5mx59RHNLNtHnXPgSHS9DCBfWcbGk9NSfJMm951WbTvL3jhFQfW3
-ql6MzIAOoUS0FW4QjnX7VNTyRgXdPjGr98IX5dqp0nszsW4TpTEkjurxaxpXrz5PKPXU6RHPUL1n
-xn508mRtjRJycCZJ3eCJWmn5/G4M0VVRO/etHRkrmiuuqLwawswL6svUp6RLWMuJyA2ebZAU2CrE
-j7mPW2YuBncV4jujN5w8dpfeCHZoTVeu0m6LMnuaPXWyJnHjpFZ6dKPim+zabFuqWFulkZXsrITp
-7VCLl3T26hATir6KpoIxdSHle981953u3RnUhZC76q8SO9hzl9qquLvoRsAk+JKYlzfe5VwpDqNd
-vPKmFtnEuPWkxTVikDdZ4Nwy1tiCS37qRYLbxlQBj+jchFYne8BD7Qtb9WLAyqC5GcD+0a846r6I
-uN3WU80mLoQKa3pEpmHYWL08mlU77DJNFbsskB+R6TQ7EsBvDSYtK3EwIATHOZ6efK5GG2mZJXqo
-8zEGHMqXWbHVDKFVzu99EcRtCP9/Z6fFS8ZliL1F9v6F3brPOvy077qr9ZeRnT5S89jeI56GvW4T
-+BwPLANcW8dxE9fRsSmnx7zUL6p5nlY4om4G19s5lXupuLtxvtxknt4/TV13OcvxJudidao9795e
-7DNcf3WWelB/WTP6h7TLwGJiUPwKSWk9OTBB7LqyXh17eErh7qxVbzJstVKuZXHRhE4Z3SS1kKEb
-zNo6ULl5EZl4QCZl8PFMtZFvU9ucbigDuMkjUC1EvYcLDBLf8HTFK9CGwyWbjVwts8DNjBp136An
-HfgzzJhgIc6KCUDvpkyz70z2fAZEvaC3O6pBygTddu6cpt3ZnSXN3dDjIlmx23blM6AWpu0qV4xU
-7aGPriEyKDwyessp6ppbHDYCIEJpd6CZmZ+yo0Tfc0zPlrybkdS7PO1VtuHaYwOOEWbGAJphLgNS
-PICFtRW+olpZIx6a8ys1rreagwk3gJU7/L++3y1D11LDMNFlzFmHQGkYbxaPhIkcll0y3ANWXIHE
-e+hHTBfkPIfhsi/pFlojcqUXGeypgKtQByeH4Lry57DDO8eBrZmCY05LNjziJMaWgQAjWROmbDP2
-zsxpthH8VtrgIoNpw7DVnQT7kwUTsbl0UqWSvck95ipxEi48wVByJNfSkiMtUrn4iCLZHzsuVjHm
-Izc/SNnGt7mBW+5Ck8r6YcVW/YA3NPW3ZHU7DrUj9FRFmVQoR/3NKeaX2LYyyDetzxsnguQozMHv
-t+NsutANa3Vs/eiGYq6nNh0vAFGflDbJct20pn5VemNwUZXMB7c1E5RyZ0L92rpddWosAFtewMUH
-gyk5w55eKVyomww9RjSpGaICb4u+W9Vz0zE3No7VON/YQ8GbABfSStxLU4l1V7Njlla3o7n9yeIW
-eJF48wlLBNCoQYRNAVlo0so3NOxpr3IMD50POqVW5UkIAo+2Uw+r0TCf2kJNm3J2P9iHTqM9Mhu1
-7kffTaIDJdsMlRwr0t70oAruo0k3o82s0jbeFqq7Q9mKLum5N1gttHx4iMWgrA32pOIOWxDE0CxD
-N93gLa1BQLrCbS890Ka72cYGGorMxgZkiaHJL8A/XukJTpIsSbh/9CZtzrXIzQ+ltycTMSgyxbrV
-VM2RbRBXbdBvU12+Z+akLgeBwwD8wisz+njXaNCVaNFKWBnNLZvRtxJ5gKNHUOP/I22OgmvecX3k
-4k/9FVHbILCuCIO/ICZ9Z/CL/TfI9TfbEcdU78XtONJw3rBg7tie5+o+y2uOfP5Qw4QTBGkxG5bL
-0asnCHzBlTxoVnkj+Vd04QnsCe6QvXH74d3pdNZMO3U5isU6Dt2Njo+FlZLQK52MRbF4mMqyE2uh
-CX/DOZTH3yavbIeZUSe37N1wJxvaVrfDbLvbOcX2BDwsTck9R9b0XJUWkM6mVc0HarnLnj4oH79I
-Xg480DFOh+aqqYtS3TUdtt2V12ipAn8u+mYT4InC+6Xo0/xWQ6R8mbD+UKVg99qG1teBcfNUcm6F
-ob4cM62EZWf080bfEFxnp1CWNrxL5sbasWonSuGYMKek1zNuq3odr4xeF/eYDtsLY3DzG1tZ3o+0
-1iGfxsLbl0iKnNVbZD0p9W/CQo9j6MZwviw6+ej5CVBasHNyUgBjY10dvK77XgqGQkDKhm3UjZ5x
-lJVZh+YgNw0M2uCYjH4/710zbqzbbHLHkqffZ1NAHMzbkMtpkB2HAAPH2ihGFV8o15dy13Jg/ahL
-P6W8WfenH7UbZ8GG2SWQrzbPh2CHVbmLToMrqmPG6EYe2sruU/xosLEPOeWquKQ7bOQX1I5yZclr
-FGQmmWwaq1HoaYYSIxHb0tLy46MsGI1tmMyw8Maqja6XdtUpFLqwQ93xx5eawc1jMtV6qKKuCNus
-NEJsq+OpsPTxKeVwIWarOehpibKExvPdjky+k3rsZG+D5xY7ylUKHFWDaz/2MANMwuKOtqod7gyQ
-Q4J7K0/mPU9CEKBG8dprZm/9EOpV4o2XrdASZqGZFcXllZfL0bhXmYcjkzWmqq/zAbve3job0vqR
-y8shNyOVvc0NZh6ugxgbuLjW802BeXN8GzMRR9yS48l5cHodr2bT6Bi9mrOBjoInrCDNQg1GufPs
-R4xcVXXHIVhWt5ZPtP4xmyyC/G0EyZ4OqLPfj7l3Nodt7QVi086ir9amXwUOPstMlPOl70a8B0PV
-cV6gTK9K9pUQ7bQqGy3PHvhVTIw1Abf3raEDJ9x0gR0nt4USjc2mO+avkTVW2iZudM344Rh1+Z7y
-2fzgum0AW5Nc1oGdibWyCtzVZWLjaOniDKuX5nZQx+JWx5M4nD2ZTmLF+nVUVO27jf1n2Gh8YxAj
-VVtepJhp/W1dp+7ARzewn7WxCOrNmOeSSxwM/RJYIHbSiB3IuOGo11hh11vNZawFvbflMam1dYf5
-FucNJmP0RccO+G+7mkPAsrO7iRZzK7cfvFYDNh8cL43B11ObXHPGNVbHH1iAo2DlaaUVHFnYtDxE
-mptZIdqIRU0FFfRaLSswmVGxylImI1eNJ7ALyaFjtkkHUuEt9/cu5cvc+lnmbmgL1/s1UiEcxYiu
-t3zn8WSdRrco4uuRtg+eIQxmLzyZGtyFsndfzC7xXokW2HesEZwCPamx1tcex/82gdPAQSoYOG4y
-20jf+yZONl7bdKdZ1PNV3E/WXeGk01Yy4dwOGNlPfm8d6rY1nyaYeSVn5j21z+MmQvd8BIzo7jlx
-cEyaUxmdoIfhslR+h5yJ87WY6+oKJFG+9wEDJIbstrpe01fk+EALWXJP8BnHVSRqeqFMqBWKi+6p
-iVL76NuaEUrHOmj+/L10BzovJnPlcZuex1IPJzOQ64mpJbDQKBw6Vby6RsXIjjV8P+K4XM2yvVN+
-s69q/85G4vvG1PMh8IojdgC5KjiTrDs66O+r1r+MA4ldSYtDJog7L8iGVZN6mxgX+5bsafzU+v5H
-X0UBnvveOOKB1ep1lmUTUQbeC/xyLuTrhhkOwo7j/n+Wz+9A8WaAheXPRo0LweftP0ImkHyl334e
-Nv76o//IVflfLFQ/tCgqEQyPYfO/ho3WFy6BHrz4pbVzGRv+a9hoOl8Cat1dbG0OBRWEnn4aNgZf
-LDRuKD8M+Th/OOZfGTb+3nGyvDIceR9nNXOATyNqm8O9Ul2H+dC2jTCr7ejBHVprP1ui//bTO/QH
-NrTfj9x5qcD0sIHwPjCi+K0NpGV0t0g95drgFw57o3dC9uyP/5MXofAdzoOJUP/J6qYbLBSewEyZ
-IOhtkkrHJD8E879p6aVh4neeFni3Lqh/x9VZ9JxPr6NxpASer3MMXgC7kzeNag3+ZzqJOZbelZ3Y
-0Hih5DNttaQFpXc+E3u1dlzovW0A/lQ1IDk/QATqkRUqraHpln0vRZ01l0kKDrwoK5Mbk1M70goP
-/s6LbT/dplM0coOCNMU9T9eccW/bo+atbRXVxcpy+3haS5SG72YcW69VOvQfRWzF8zpge9PD2o0y
-K2ScBdiFFZr5sTnOMieo03DSaU1b+9FQ8X0lUMDpFQSj5IWNmXXfbdch8jOAKMrCjg6r+9H1WnSN
-wTEREEUE6i5nMS8jIoPAYqIG/5pXGkMoqi4bOL53FD1iu42f7c4cOq7YAxqvmcPOY1ZamSmCjesW
-ITdOLE8gs9ofdc6MJoxALyOx13315JiZM5Arc81vrW7bhCFkHlDhYmZv/PloBb3RMZVJIeYu8HQv
-bdaOYybmBQ7+6qR7GTc9T3rOG+5fpqmZaVQz/HifMhhMKALJP1f9wD+v5qsq7n0vdN28uvSnfGSE
-S8WVvbK9mQt86jcdIiHD5vxyUjXqsushEfP+W3pwa9Q6PVhJ5Tpfk3LUqPIcx+a2as1U38PG533W
-4dpbodPP0xU7UPPExITwHXe77GEsB/FeJSImQFey1W8yxf66yvNCGmGnHBhOhlvRJtxaBRbw3Bht
-3gLPzr5HRhw9RrkYHjhLggAeyz7FPOtJOXH68Xx6iM0ubu7GWoivJoyhG4fzAIOG1C2ektyvv5q+
-qvTQhFN8jWNqAickDfcpp435as68lhswVulNa1XdtIlir7uOnCmY9jJp/ReLdNh706Q2yCEqX8H1
-4Jm9dDLbuDKEyyfRyVw9BHGV3/cq8A6iKlvK0aXTvARxQQ1C4k2MIAz85HuNjCIGsTFpvjrMMwiW
-VRNT4KC1mBZjzA7eevI6E19X5my7Ioo4QEyejbJG3ix9E7HV4LVuegdqf1kIgxQMe+Va1ycEM4dA
-Qb/KnDnGIqF1NPnhai9XhgMsikRUN97SnYIz0DALwQ17NvEtzLQnQIAuhvJNmaO87YXnfuSyjfag
-cqt+xcFBexmT9KswkArxOuj2c+R1lFJ1ucsdNKIgAFM4PGAmVt2gbosaYzqBKXvO4PZSLbOZ8IwR
-XsuMFgS5FhsX7jjq1/D+GUxl5sz0g7icMEKjLJpX5WscNKjUmL652qggoFa6xMSu+TROiFyLDyqp
-o3HT2TqDIS3TZLQZwPJGq7xegqVNqWFSt0avNkO39fM34qhE4NDFcD4MnMTHldNP2mGmSVuscqMq
-b1splk9deCbSV0slUjgMVZEezTqoKB3o9OIx0fzJ3ZYM6wyuwRnTUL0fZ5BXQVdxRdMJcRDqsuph
-XXcFQ35PZW2340qd3xMCtNYFS5AfxhGz2ZUya8GZ2J8o3Rm9JB5CmUrsuVLD7g55mzHbGuRa8syo
-yBjXfo6Qu4v9UaLWzRh/diKrIpYnewLn5SSTeNWT5fHPe5KHax5F/zEuulbfpA1G7tU0USizEXmm
-aXyrUB1WNKnQMImHxfvAMJGUl07VxfdlEvUvshPetVcqy92AhxIU3QdVAtfRlOO6hstFRkUVGSaT
-eEizkACC+WKVPqd4I5p1bU3PejCFObUdaZhj/oZCrVnVreG3/l0SafxNNQTSdSREbEId7xKk8M58
-AvLs7agm0qr1MDfWm5MuMQIbVfHQgKrvN4Yz8hyYUac/GPS2HH2tJ6QYyTz5UHkav5r9yMfd1SNj
-BZdgIiupVZLeIOmTxSuuQAxqVRaYz0VhJteoEQs9LDFM7DXp2Ie4HqEqBwg14w7Z0Pvhn7nL1QB3
-HYdH42nr4sxmbgsrucGODbGZ+LO8W96Rnlp5J7r0ehMU+FQ0nNjPvOfizH6OYDyf+J+BIrUDHHrE
-G/A0pFU3bgrDgh49e33wgnjmf50XuDQiPJzp5exSrVGRRm+VZhMs6pSLxnvLRRFC9ZlWnccoIzg9
-eHRWiVcU34Bow7bGbGEeO7Oc2f3O9Gu37xQR66aRZBoWQLajpHHirgo1u1gA2v4Zpa0QjpYxLtA2
-b4Ftw8CbSL/4C4O7J1f/jbhDV29Kkp5vzNfgdXuIJM/1ZGTaqg/i8qU5s70pA4gerDPwW6YaTquF
-Ap7MVLZyDdagg+dnUrjBU3VLCrZ6rwJZvA8iIoU3nfniNtK5XOVab56GpLMgkOvAyGfsPQ9lNOBP
-mBZYedXX3rWhFoJ5anb21rbm9ADPMb/TkgVzrp+R572hNVu63IlbQMADij6fAekxTTPuyl246bGd
-UbRScqxjIJfmD1q2INaxyfTPw5jGbzZtqTm7uD5/XzpusR6VBtFxobcoI8MZ3g7knuUZjbC8b854
-dwL80+VUl/N1vdDf2aswnhF7lgdZVoW3ci19GPhcF2w8JV/mi5c6wOTzhSs/LoR5+wybTwvfOWL0
-ca7IRSFQNGcwPVg+Dc78L8B6H3Z9tFDsCYoBtC/PcPsyXTj3uoJ4f4bfa4hEdy5zwG/KXeD4hbk4
-7nyrlrxNCz9fnFH60RmrH58R++YZt5+OHVEiW0Dh12KXfM5C5h8XRn8X283zbOU9GisE/4Qt5HJA
-87x2zoB/i+3pfjxj/8dzBUC8tAHAHKQYYNToCBjOdQHV0hwglg6BIkmtZwCjFAvAPTfvS2OpG6j7
-pXpgSJvhKVv6CJrMQYWczzUFnu5QWZCf6wsY7vK1yM+tBueCA0l67LI51x7kfWrlcPstyPDAqOVq
-NPW432i2W7sMiuhOiJYWhUlAzlxNS7dCbrmMP4e+K1ZBGoEgmHuNIgb3XMrgOLnK2ZLoajAZ3ZJC
-1Ob6PZiWMod06XVg266+dgaGrm2u0/uAFdegOceOnas+a+prrrDZvSNNjMHd0hsxnyskai8R98HS
-K1HHnvPEUcS/L7E6cbs+V1DkQet+G8/FFNnSUWGRVo/W89JcwQbr+yAKEgot8nLCsMw/SJ+rYfA1
-IonV8INWz/EGjgOVGMm5HYOwB8fdc2nGcC7Q+PObyu9uXuaiwbFcY/RcbNXLDeMnj+dIPqOiV0ms
-nVyrbwuNmTan1mGXTIb7/OcvdW6D/MlPai++d3CdixhP1QpW5N++VtUQQK2KEpVAONYDowvojRLO
-xNfa14hDKI9g68odprlYFTb5xm0gnelHOSFWbsAkyifDw3GA/IzL+8Jq4gyRPE9wgcCNNC7GcRAP
-0ux8fc3nan7vmn52Gd9LpNTU8E6j6rMfhqer28C2p6+OM0wZblJHUMYu8uBtiVB9NdLBrXGIkO1v
-SzN5cBt7fq+GorwfsEjOq2zgfrQ6vy9/yTn9/3rnHRZig4/7f42HWSp+qPc5vlXf0+a3iJhffvQf
-Uob+BcgLpmSyIpbO9Zr7/T+oxPYX3yfeoRN9/BX18k/ftKl/Wb52gBeJHNm4mXkO/omIsb5YXKAt
-H00gwIz61xAxn/QFTNOex3MU8E3SF4Xk05d8YmaeeTXD8CBXzqZOAEb4kTvvfnpz/kDF+PTYosqY
-v2k5/vQqf2fL8Sdt5m9qOf70Kv8zLcefFr//SsvxAkP6OX60fGK/aTn+9In9ScuxAzjIv4y83vth
-5FK9UOpkYX1y1HD1Z6XHAvUmR273hVqfq48nlRjVpkPaZnD6v12A/Cnxw+9hLakEg+suuS3+89tF
-3P5nAfJAxwBkAcwn7ktiCat9bNCG7wwfePTim67vmGsJ+9IorSzd/XEpcj1VxdXcRmO6/u9oRv70
-+f5PNiOj4/68r/6Nzciffsm/sRmZ3NJvf6vY+zuakd1lif3pTEIf4n9/M/I5FfXTYWX5nv9SYYq7
-k33jcyL2X9XIrS85w5ezHl3QaIilZvZoLI7ANJVR7G46Y7DAMWnV0T4XJw/2aH21Eh9aAmWj+9qv
-ygtUNBgBbdQ4l61R+fKXAwSBqT/uW/285Zz/qgR3UeF9ns2lD/bn9+tvalT+pDXHw9/SqPzpd/kv
-Nypb1vIk/vaDJh5JINNlNr2cLD49P/oYeDm3cT3E+IXaZwU5l0VuHOoJJJZINxnXG5dUDcoCLvK2
-fkgwQeOIciyWP6gw/rOVJIR9MgIL767KkmA9dLX+OmtAVqDKcC4Nc5APT03ra3ftGDTPJrw1foBa
-lT2IMfv7BKYcfn9eBeU2QkNRq2AyAgyRJERJx5AGEeso0IubvBvpyKorJV81MVGGNfW9esgkvqhQ
-l0J/rnskTKxffXqv6YV/h7nbr0MvabsD93GGqZ2IpjuvCHy5xvPhPoxKr9uQKxnRpqTIEJzKrrV3
-SBK2tVJU3MtdXw4DGQw/CjBZGlX/alY6zDbkk+oCOha7TZp7zgQuha4xuPmgKkLL8eVL0yr1RF4A
-5o2dIZ2uldva2Q69br6ilEahjVv8azXOfVrDtHIg3RGN8UUHdwRVHOJE9xxMk15vUMmzV7cSPdPP
-2hmfggKL1rpKffuumDzjBxWEESbWstMVRqlgfsJ7Ry9EPxdOvJ7camqO9DPp94aWGnIza4iSoYS1
-YKJEY4vD/VP3WGbS0r/NiR7MvINx9wGZYu65Q5eGt+7m3jhhIgCcECSyfa2Rs1uwPrhxLxoXGX3b
-WF0iLuN4YsZfja2ewVmRQO9D2y6L9FFENYSHxLXoQYCDwhAiJ3BDEDiGaVVZDgJsFhmWoAmxMo5t
-NeuMBKQ34gMpBsrijGa6CuxBt7dR60VxmBIKxyZD0Nze9I01fUs8b9LRhiUAogy/WrZW+TCJVf+f
-7J1Hc+RImkR/EdqgxXETSEkymRRVLNYFxhINLSKAAAL49fvAndntmbUds7nvcaaLGgjhn/tzDT0q
-nru8fWI6GMirtVDwjeMNF5OTTD7Nvh8utX3traw7tLRdwZTei73aFTNNiQhYZCJEat/7Uuj7VE0G
-GuhMncYOKv8qQOXnWb0vPGOYkqXAqRQHPvWKcboWLbr3xq33zHXId6TRwNkXauxA26/lNnFHI/jh
-fcLvtTlhXx4+ofjpJyB/JkKDT3HD5k+CQTnAfPlj/MTqy0/E/kwk46v6BO+rjcE/aI8kEi2ZLwQ0
-rBcadvsiyZmb/co/Ef6phOS1t608vIafkH/zE/ivP+H/mbUVATirMu+5L9tdrKPMvJpAQfBeDtD/
-D4aJiwi9TfJsWjjlIzgyvBjIGoIMVbt40a1vS2dE980domXZEO7XUa4MjogpDdyxv9FKsfyym7Lh
-yZHL8tEIt7R2YVWRbppaGdWEScKOzsLCehM2pveE0W3R7KeCpHOc2U1TJlp78qJNLDLXdhmcSzeR
-DNrpBRvqLl8IOicqy6snt4yW6sCxrHwaOpt8SYyHV9xvf7HusOBHN66LV1fFJQxmdFgjctCFs3lZ
-mp3nVCPVSVuMq+9A6GHVU9gdkfaZVeW1SedJ6Znph7E4DmWMoOwA5oU+ku9nLixkRhHFaOzdo+ad
-gDfmkHDqeoB+14zzXh1HECzgDfku4JIB/t/RpY/9py5zvIORdslMKV79G22Im8AZpcEjHSXFlk0L
-GvNEJiCYqU1JI30ThSy++mWYjwcdeGt+aaasP1Fdjrey0bOlkjKX+rHE56N2/jg660EvWacJqevg
-JZRlKe7GTFYweGxMsp/5NqQaBlXDPlqVf+cK5cKXbM3ptVHBsMRzuNEJMclCKnQ3aCGeP/iF84Yy
-xI0E1ZDSGQiHTTGnX1mi4R4Ouq8fFAHDD9sZhy5GE1cvi7v0BBI3cKKlBL8lQmLwFN0NrZjzc/80
-P3mLTj50PwVypEj6CeNF+clmpMq2/u4uuiGjl1fziLlzIzkym4LqGCkH5GL0SXu06LyXB+TpNNiV
-AKauKlAtudQeTCSFLNbPwlJpf8CVCQVzkZJhjIrMAOYgrSZQ/yojvGV2Z4THeYNRiona6NhcJ69M
-YJx54Y5pPugqbAzRbww+EC359P612zCXzIchXkaf9Mt/ffn93+cdUH2mE1kbNQJiyz+dD+3FJLVo
-M5ABKpddys5Yz6kedfyvv8p2IfvHc8HGaKGj0Wai4HGX/8dTVcciyewxxO5tFFDszAEfr23TqkLa
-A1SlN0O/RFM6p8aw/teX/n9F6C/AYH+7Of7fetB//JS//2po+fznf9OAfP8Pn0WYP41lueBjtgPv
-3zSgwPkDDAPMMSoFLMJXW2nV37PzwR8WQSqO8uA/cLQQLv0fDciy/rDcwIEO8l8mmH8vO0+K/x8f
-Ho43Ng9NtF2SwdzYm+Hmr0fyTAdAX/FUJEM5ifrDXKw6maUght3bDjOMylNkHSsVlEnfu328+W0f
-oiGvWM+j8VaRm/6WiiZ47Dduad84xguxVMa4XT3XHEkyIqKrVgN55WrWh6yv05OQxDVaxxifvEij
-l8Omco9WQFKumJjDjsQO6XwVZCyW/lvUBVmb1I4wfVB8DYjSGvISc1Pvt6ar9DpCq8KRq638Eoix
-wlydprc6YN+O537wH1wL70ifQ1GKO2/lkOrTorKhYmKJA3Zv14o02Lj2oMz85oKjeRrvzWqy7+dS
-yae5ILHS1iXBH8vx//SYXRcxrp+Ipi2vOjICYjmzhV3flwu579oQVG5Z8xfEZWwartOkb0SK03up
-/OwSEMO5bzP5WoxlsTcn4VwqkJXQo4jdrmtxW/VSXQiY5c+iApacD4RCkY+v/VTYDy5BhrdUrO1J
-h0VwXoxum5uYTvZ1oO66iBew0kngj9A0dWW+QuEBjltF4de5nHr8NOSkXaBcJ9uGJKk7I+PYrAir
-BvRQsT5qjrat6jJ4tRorfqHy5aH3W7yRoItjsUzrWbVZtG+8qjwz5Xym5vPile3bGHEyIChQhor2
-oWDGbF4xA7La0YrxaY9JsXhh7NoW9WWFmcZFVnctqLpeH/hT2jtaputLBnGGqi0ToiUOsl1kF+Jg
-i5VECzScZBH+cBhHA3dKODoHmAMYwYPOPgMiaX/Q0aT2K6EnqA4bnpUkAw4Dbrd17AsnfWx799lq
-C4ZlbofHw4tlhgEA35F4XqSZHdaKND7Ru+A0B+MWwOXnrfy6vAZFOOGIdfwnvkL3zEwZO/NgZQcH
-MOS+GcH1llNFjiecuoTIxjw+Ndqbw4MdMswjosF2XYKUnTxCS8TpL+AXx/J7Q1Zt4Cw8z1HhXTPK
-vBnQZ+Qdm1PDyIa9280ZirmHSmRFuLlrLDCnibuKvLMeesswiI1rGy6zT5N3W7OvPi+gmdbizufe
-VVn0JhftmfkAx7Kh6iBkCUqz+mX6TdiFT5SRsCBoXtxly9T98vNVfEkbXydmtSxnSa3ct6aENbub
-0ZBvk7fRMiW/rJyrR8OAOx/26IDdcz2U/YFTEBqgwg16suTs36saRNrOgYLwvoa9ustqMDW+dppb
-DQ/janpW9V6nQXRsCaj8aOkeO8o+DR5W/B1m7NlpdczJqD2vOuM8jVM8h/QgYOlNs9vc+avcctB5
-yCI1M9SkalL55KdSpwO/yobOnDh/0VxrCTnKiB+/Xw+c+i0SvhGR+7oN2/1aut6lnBb/BMh3vM0Y
-c7cYxKsTSnFPr1rNlTEPCT6mUol3j2TyM02CY4xYXkEGHe1fXlAsXzHfAB0w8kHcu471tLZOvm8U
-L4wflPbLQnrhORjW4D6ARbunXM+5mY5y3oJupUEPZKRzmu3Wmy+WlsTdKmxv+a4dcvfPnOveq+wZ
-yM12veJ1K9viTRvGcMsxhuidO1rBi+kWeQLlE1oJfW3eVwxQWN0FhorAzonblLpMqAYGHZYbZXTk
-3MstjSw0nA7PI12TwfaGQIlz4poHec6KWVdPemSEa65buK7jtpeRoDHAwALqrBJARUyeJwhEiSuw
-YxQ21nY8AnPxPQP1RZQLiuwu67Bs5XAo46Gtff53ObqveOKjj6YtpvRge874YKaL91IuujhZq2ne
-olrUL2seOZdiKtyPWUbWU4OE9KCHGipJvgQrgPTRSXTQBn8Kk2+HvrJ+ukFdtvd+WVQPlTUY3wrD
-9sQRQ2BwnR1vYXivpzNrEeHPQS3qECywz7UliB6F2rsreFZ+dsQ5j3qJTJHwrfq7jRDM3cUdeuds
-Tr1K3HrDezjOtBvs4IeJ9+coMlMPOw2jin9CoBWjlg2JxOoBifpdnriB259Kw5vJ2PnjT39W2b3F
-bkmnnBNe27TFSGLBvb9aTbheJqyBT0RuGAZrA4oLLsYx7lIHnkU2Ns9GZA17sMGZwtRMym20K+M2
-EuSYcBk6/W8TTNJJD/lC0bpsHoTDLs2tNwsfqtZrH8iiEPCremw1URNi1q7Tcfwy1WuBySd0Q+pX
-h/otVeyO3oiov1NG4B2XsC2e4aaat8kP+qOyNhKK4csrS09/Z/Y1vvlqqHekokpYD5Dg1+BnhJ/b
-PwMbDj/ygHtCm6cmMZGA32pT1Vg/mSu3W4jJ/VAdwa2mJqPHnSm7cqEyHjDGSaShT5N71La/GlXr
-ry4v9THP2dTiMgvSd3K36bFp1gfVAx7WDT3RsxU3KVaWzm4w/4dAWCG9PkaVFxFW1u9Dng6XynKd
-r0FEgH+nhtB6Y7aWxzO78DcTVsCPVrv2frUq9YVVT1yrIg3PfZitNxgi6ET50sdW0HwhVXwVGGaT
-QUfeXe+Z1UMj+/EwFM6pbo2XAtJ6Mvq6UFQOtpemnndp4VsPiiq/RNtqPLiEkPgW+H0mpZ8Od2bu
-Q1IOiEsEtAAmTaXNh2H2Cmrumy4R8MPOvMMkaR07P5Wm9C9kp2tEukK8haiEMc48d9/61nIvGWFc
-JpNbAOGh9KgHozwVjKwPqWV6L0XpR3u2qQi6hrPe5spaHvsyyt+aue+v0TS3L1a5tkcvqoejBVr3
-0LSUKkCKrg6KRsDLUnbTI8ZtUGbhtEOfVAfeM6niMkcOspzXwrHgr0Z7+MVbGjl/oET3Ejb5vqjW
-g5eKZJrDUwsmJjeRSeT33vltVaP/SEw24hptt4QB57qbj2vgq60wwEmfiKRkbxgsj0uwDMlsMSrH
-3v3eue18Jc/Occdapxw8C0xdczbu3dStrIeGB0+jGW4X8ab+HQUi+u2kCjSTO4o1aU0aIoJMmtcx
-Ii3IPN/D5RGM93Y/8F4qIV9JQbrJHKJO7Lo193E1pGn+MU39em484E+Z4E1M1NJjgkzNNyDSQBa6
-AvMXIt0BAj0VFKXOoYrUJK771bL2dqWNH2ZHbFw4WuyJ4sx7qylMbESYCKZB2zeI/iBJoABh7mqw
-IC7Vt8Fsxr2REZ7vgTNcOKDO32dlTgeSoXaML8nbZ4Vqf41mkJ6KZlyvmHD9uE+XLAHC5O8NAolJ
-3gKPAbvSc4wrhuhBVmt2GM2me8Lmzul1KissoVFxcY1sOOW5HT1H07IcJY/r2ddIRspVSZH5+uLL
-2okhxfrAD5V/9BfHuJguhd2twgw14VZKQBnYSdHAzvI6RAYxRdad6KxvGHRe6yB7MzIIKn20nTN7
-6m7hN945Ct3Q8pen1JlFLFhVdnozV6e5XBNhWMvzIDLkzBEka1EQR5qnjsmG0X9d5zZN6oy/aNsG
-/M1K6ezqYvrtUGS6H8gTJYU7YzMK7nr0tj200xnIZkgguRket4aUXVCk5c5b/SvvCobngUA22H2y
-kFk8eiv2S5ddTXrFDwpHWJLnwT6UPf8aHPvOCnvzfaya333RfAFm/7hYgkFKVuOFbRrcGV2gk96E
-BZRiHuP/mxKvxuXtV84lzRbuKmWn3s0h7X4rS2kUmcGwTpB+/biurSUOSrPcA9XY0F7u9xFa/t1Q
-Z83BMdrg4ADOPZZjWT/TMKA3VqREZB1fFaiJq9NocRCdewyMEB/a0ij+26ziwQ3ui5V0+zRa32wn
-Q8YKw5JFuf2yyuksaYUAX2EnC43ju7qm4ptugpzoHaj1SNGxYEV1HELO3sG4vhtxeD3Xvc4OwkOU
-M4wSFlTltZdlzKMzkBYefnaV4+hQ9zuibV7w24FwHkE8zti04mk0LB73AZ91UI0vxJbl2aghmefl
-DEQGbbbK1S1sgq/YfKsN61ntMz/dYb1LwAMtw7nn4zBz19OrWo8hamrSZ/V01wcl5HnHILDv30ry
-2nt3lfoEHygeVXH2XbxizcrnColVN38aIZq6ularFhd23enUSl2/kNXPz9tI5kwiIiPeponNGxYH
-O7gMoX3+VA3+X0r5i5RiEwFhEvt/iykPH9R9H2UHAuOvmsrfPu5vqopn/mGbW6IHJxhzfeZX/62q
-+NYfQG6YgTqe/ZkDQu74H1XFARFF2NT3IYShmP1FVAn/MBEskctRVsAHuta/kxECSfmPosrW8Y1G
-g4TDVwKZaf+TqOJoSoUg64bxOA1jfUoLiWK6KBvftV/aA+vuKIiAljoogHaAGz9jBeWJCkOBXz1c
-hXrKQ27MMc5PY1c7I60yHp0QIK58N8+SeoXDclyXNA0fbaARZIJtPcbRqMVjA/PBjK0KvhnhmepJ
-LW0B5ahXWH9z0NYon50t1+9NMQ7FIy708VeDMtwl4NCI8XJOFVeXiUW7I1Il31Or16/NOhHvNIMO
-WsfYAB9Hsze7a6nZqo6V54bhY65SG0xcwEhqdsz22ZKV1RytIm1nuQu4/hI2sSQ0o3o30iZV3Edz
-2nJpGzLuZLvaKvKCEO9g092yRCA9jLK0WtLMpl/ezwFsjTjDRG8dG7TWglNsuISHmtKpnDgOwYVr
-3Ts6Qijop3HPZXaFQWJCnkuU4YvxAJlujeKhwJdfcZ2sHLGnvkqKoxWagGc60JZb67dkonDvjlIv
-dwZeYvenLMqO22xRCcWcJW2wqDvtYj/aG+cwbrem76TEcT/cuCQt67GfpWN+p9Sl9r6SrSzAZEQ5
-c1bshIN7g1M42replhG54LwmFkNGmCC5iPxhvATpVH6pgVZ8EMxp31LOJGRZUjtk2ALwCJUhc49V
-A14EXclx9ly9hpJ768y+p/vmxXFmHRNv3wdrxI9s5yHSRFumeR8zdfI+9GIU4parZr4FDfmNpqEh
-RqdOzw0wF0RNXQpFnNhwKJ6J+zFqikcxsqschqrlEu6EFHkRQgorOmeUTM09CYDCvzKJGSMOjlxz
-DiqUTZQEXb2q27rSy8X4iGO8Js8zQYbP1nGD8DTYTA/0dQHXM1T9IT1TvBeUo3c7sZjS20mnC409
-qQ8z7rn9cKuq06y79IBuWIpnICKisbvXVo29vhTVZMA5QLAYYl4W7X6gSEaHlPNJnvSdF1no/evC
-raAg6nFS4TT3JmLN3HCicNnsy4mRj++OuCulgyMppeloRdFcHkbtrFl14fPTuZO4lrW+UVgl2dPk
-1MURf+qjOy7fAo/RycpA65kYCbPUYUES5DE9dVm37It2YohmU5rVg5PRqYpVP5I/NTl4ULttBmuB
-fgiKDgUuLa/2qPOvhrHo93yZ6pMTaX0YlGofjFBxyyi67ieNOs/txDAb60a6j7oQwJ3XchvruGTt
-bTJk9JblMLqd0oGyWSBW3Tr8tO/8bNPJTju+IouEc3DSPikMuiucmsCt0aXVxQ6G+TYNvn7iDkvn
-eDbuhrnPn0JVLS+g8+TzxAm8wVQemUkYmluxVlqS4gOffh/ohrYejhfQHn0Nh2aFccZLshhvaxQw
-mCvdUNV7ciDpTWLHujdqGJ8wz4f3kJAe+EDGZpxHYewk6DZkZKbOvOfCjvvYtTQeMlZQjgFOHzQk
-5iJPXrNsRCvwOqTm3hHL7xaJjywyXIIqwdyc9oD3ug4mVcQTtIcLaC0cayDfJfQDoYpaleVTzF5w
-A7yRpTNulhzkJTAr8wypZcPIrrQT7Idutot9QMrqdWJQSQWQR+sDj6udS877s3PqR9w3+1k5fNdl
-YCyxwZkiveia1F2cQg0j8hMEIaSwRnD73JEzKjZ2hFWX901twSwTC26dikZe6tpYNsn1QX1Aey7k
-n9JhMHtWgxzEQUaTPLjR5FTPg2nBA0y3h5Pce2s8pB5L105GbjshtEsRPHWR83v1C9a8NkxM1FL6
-F0RzRXmMwvKUTz3LO2OjyJXVuXA60hiURJieAcWoin7pAHkz6Qfu2o9pZVfsMxHh7P1cVMv4VJKW
-GQ4dBv8ozkqIWcfJhD8Zc+L0zqvhuy35kNY4FkgvU9CdVwDgzX5ePSsOddFfufBjCOxwjC8Haafu
-d8d2aQrylhBUGtM0NhI9dWfDHeZTpoY0x+sgC5YjHcwoV3Bu+S23ocIPM8/i0WRC2oX0QdzV3lKH
-h8BEBj6EZUVTCnMAP9xb9tyTkzfL4SyB94UPawZBcTVmlvhZaRt/zAJ4pOLmGp5WrnxkfIi5lHs3
-LEPi5KhioYOcYrj8q7KXwbK3WuiNZVkxdpv5FZ8oRwPX/Q1/xetMIJAtr1q9n6Malzttw9A7yqa8
-pfSdvHdgZ1TMIsmDgWgomndkN4rOWM5NQKQ1B1tiJSMMBbF6BGR1WcK76RbDP5qsD+WBp8lt/Ti3
-0Uq3CQqwGaL55TbQRxG+1Iw4dhv+KZ9KQqbr/EHT4POU5c8W2JmLqQa0jy3szzY+Ob9q09zuEFG4
-WzwP7ZS8KegjmhobYseSG2vjb/WLEFe1UlV3AtGrfZbGkBcgCtUOdzrGJKILwjvn2g3UfvEz/8oZ
-PnfZahhLNIh9xjRQUCVqiL+jHH74szl6J8samx9dPVHA09bd62KFuFP8dCn9sx5atlzIn9ztIskF
-/aCZdAI7UjhedtJ12mc7U9ogV9SrfA+LyK9iDCXDl1UUVMu4BU05r/gT9Jeh8zV7+CgicaTObzk6
-nA7Q3XXg51fQpC333YWwxlrlfOpyqOvTMOMU2ZvN5k1puWL/rEGVfeldrP1xNlvm7zXv/GfbpaM1
-RmHP46KcbmlhJ70mwUipz7SnmSqJJlsgB3v5heW/3E/OzN3FdgWbYgGabGoPqbCiBFZU8M6c6hTM
-thTwwSJLI9FF9lM2boIGIZzqcVnzL8Aj63Zvrt5uASUM3QnAzy0oSts7qzWsT/4UqZjL8XWiomm3
-dDPOppFDQ1bnPcxNvH3llwp6yx1DMvD0IAjDr90EY3rPsyvA5UhdNXVczGtTPq3Kq0sCYenKXwik
-TOpv9IYGGonYT4Spho7DW5Nx1JvhsBhUJ1aldQZ/PNo8+6JJ/MbqQrARHCm/+104PSD7yfA7Saf8
-zcomFfKtmqXBLxCy4jHTPmHcwuJxNju7uMOsQI9bV9rUFbVp7kNbnjbiUGR8pWqn3wO/Wa2WTPVm
-hTP8JX00RgcKGEVD4dGRK+tt4LnyW5D2VGmVJCOKuCXxusIUsWASSbcJXUJ8s4tFLuU+Cy+MEeiP
-AW8yjXbFujlOPOKuu562O+e8ZM703HRN0R3yXPZm3AYczWKiWWlxzf2WrZb+UmLHVJIi5Q1R4ZxF
-UKwEfU1USarg5G8irJQHpuwfJRkoH1aiFOsFdlD+ZXKY3vXCWH9DHl2evQCbn56JXe4Wk+0hFsHY
-OvuRGPQ2ywvqO8Ku9q2vnehunBun2ntIP9ahLAZxgYNRmUeLWYL9WJXFjGaeOYYFpXDiLjutXQHv
-1Sf2C9gxz46BKKW60yIPOaCZthOnXvkiZo9XDv8HHjzMQF+Qs/mocky9+wCTxs7BUwN1ZRiac6/H
-qGd/ECxQGKWI40MSs78AIRJHH3UUPbRQ9aM3Gc5yZh7AeGLty4+Rk1dwlJ7be8cGhpw+2uNyWLMw
-VrP1u3fzhYo+qqSGcj5VoHJAywT6SgwvD/gZRB+d0G7V99wzzPWMwkBlVFb0B7cjPnywikWCJ6w4
-SZ5sPhIdP1P3XeRn91lqb5ON3Kvk2RNVl5EtL6J5F4ZBHya+552RZtrL0MgFiUq4XzuoZkuCFLzQ
-MArL1z9KNlpWQ9fhmLrYS8DrgyqXVBy7q2tPV0t3MryUAt5GCPpMA1k1qHI8NH5coXni1CU8G01J
-mAt648zGyGGHWZVv3XdBHe5Bjc3rSTRmn/MdjHgzOf/37bfFd72j3boDRsQcDCP5LqYsNY1XlBJO
-U3igTNR9hoHf7aAwps7eikTwojyRVhA7MZYxGfWhPDO+jUcnLcgq9uIOI5c+DcAPYElFw6+gdbKY
-tky+yW5UzvX/pQ5Z/Bz/KllYlMT8K6XjP5qPtaN/4X9/zN9VDv8PEjrmJh+gdpgcjv5b5cA7EtBI
-ZPkWEbXI+/xPf1M57D9sm3KoKCS1h+fI30Acf48PUeTAdXbr+MFKiOkk/HdEDhSTfxQ5HAYM5Jfg
-oGyaCcUL/xyEmYtI4DkQbCHN9DVXQ2Ws+7ZfXfudojS7OSltFpGVaBqwNMYRUfYp7EMA6d13s+XM
-tveFMBjISGM8MHLIRFJJ4q5/YsQYiw9LZN5FRP3kPOTtxn9CqRD9o5/Pg3UHP4YCZ4NYd3bW0vKK
-pF8nwHO17g1syOaclNPkP4/2FgV1+7k6IjmN5OW5bqc75YVLQN2BkPn3Foq58RzmXsR7kRlboyfj
-vEM1dEFwp5A5vhud6vgkec6w18KpkeG3SqqqtfpfgQl8rVrYUF4Lk9MbZEi7KBB2FhMcdqkgXRMj
-tG333nA3QCS1LswupwqHKLtTrl9XqFJAHSrCf8vR6EfLvbYYkC/lwiXyx0SvDLKLEuN5kt7YbFAt
-+v26VLKvlSk/MblVxJJv2erkgLRmtk1nWvM3qBwwJ7nOG86lJW3NNp+Vy8lpYYjQn03IkjsgYyc4
-k9zKC/il5Wl0zOY6zFh33EF/a3E0IRp1pngeVF6VdzrLeuNhRlybL4W95jnD+bx25gsXdxrPViTb
-/BkzUZT/RiDig41utPIdRYADJ9zl8x4E95aCAwuKvzgoe3Lqr0T6UZRPtV8EzXloUIt/WDPlEBzu
-6okKnSq2HR8CJgxOD1DGT9s3+nL9tUxigp3XwVCfDrAOFaPqooJy8hUwPaZAtzUamG+lGvIfri05
-+qtMxLMLJCLtKdqumY38KawxZ9rBbCDI4HWXPhoKJk97p+cGNjHPrOJ3VXvbjk9p7niPcdhtjovG
-S3WmajYVD1uHQnqKOMmDnY0q7kMYhoCcPMlxSKkQ8WyGqBZDomDlED0s5V2Hlz7H+qNaae3ELPXb
-oA0Bbbk0jXcxYBN9jHxsi++BFcLBk2We2fcUYDo6UZUBd2Qnh9kezgoNPv8Z5NK2VQwTGIEBh3hZ
-w62rfOdx7BYnmLDCG9XUbx6Ubunfzc7nSjMvFkg2HbGPcLIuvXgYBrxSnP3Hu8rvnVsLdu+XrYxG
-x6WsqlufYWjY2VENoWXDxMyGq/YBD/rO8AaZ4MXHKBt46gcCmPveVb3P4LF048adqwdWgGE3OYB2
-wIoljkbOxEjQnF1MUfughrKDl0Ptmx5tpuR7ONNO4sYytTjOdfwGaR2pD0xkOHVk0UUSrX5yOS/t
-l8rmZI4FQklx50W9gllQsaGlnF+M3v1TFEuZ1G7z1A3jlLilvBOrvT6Zee4dnD5Ud6E9RklZuOPR
-jsz+ofUHrLVTgyDrLMY1XbS9C7vqUTbyh6WGPua0VZzqedLHBiwTfwWzP81O+dTClDnDsrlOWymv
-GWI6we6enpAPV/pyzUcqBarElpl1ylNKG2CBC/9j6kGND4sHv1GE1iGTNlc/xsKIHlHjuPXWfBhc
-CFt86UP0O4650dM4VTffTN1ksWji25lYaQ4dIKE9ZqLsbLthfV4w1AIgGIoEMOOHkW51JIPL82tP
-sI9kVxxmlcPK3kQOvYk3kZycYyUFuSF3KYrn1cc5PkE82QWY7ne0jkmyRJXxYk2T9Y51vr5Sa8/t
-d81YU6IIqHoFsNlsJoak9RJiXDA47U9G88swBRpQpxnKN3BS373ed86aePveQdM9aB3ND5E965dJ
-Tv257eXwkAfhO+2+1sma9Hg3jbODOX0Dqqd2e8dYtThLpp874cn2CLunOXcBjAb2gB+OTZftkHvL
-3WLJNOblop+Bt+lgpFNxlIoZ3lpm4TXgsArJsyLg4NVedCrHID9JL82emtpdHp2sQIzOWRB3Na7v
-s7XCJMXGMn3DE2Dcd2ZwoCmZGaHUID0as/7SSQBdYrCcK0b1PvG4uySLwlrXgrt47BeyGxiVYRuY
-7ZA9YSbJv+XNVt8jVxBDrT55ixvErjJSzOYzx/gOvIVoW/Vo5k1KhTK6bIOHKxajRdeMDCSD9Qn6
-DZIlsZTOh77ElLg+AXSdYnscykfJVeqhZqF5RyHQl7QPpgu8CVQASnvY90ahPPOosBq9oKTQm724
-ZdwzSYx4NbNuZX8KMh9Eq2ng5nLXJ6RL+gSAE9+HdZU+YyZ9gysVXOllKc4hKRdNFKdwf9N0ke/H
-fJgP9IfpOF9VegjWfLxjU5gYYyyG9dIwSr0uuPYamNCW+pnWHkwsE7QV4B+Xyl7WmTEJvKY9TxYY
-TmiJAEMEJvo4Ejp88PocmmoRDMGfMjIhbQap7net6UhCJLAxuJzYLgxtiTzfDdLT92TwacnFk4o0
-lVej6T9ivZBvAyMkDuKizH71ZdWfas3tb0ejwnDMihrDvmOlLwiJ3DaHPgTy40UG8sBgKjaIQI9X
-w4+aB+A283lemddzanAfihmtymjqX53igHZCX4iiXUSd6N5aGAqPpbn+qKeAeE+v3j2aPgBnGuW4
-A/9QvpL8Qq5kQvNGdnHc7HthcA59PLdhvZQf/uDKi19SaOy2BCZQAqabKYYhrtsAh+Tchfz90F9i
-qtcZnzRtdmHkk14z1T5JYuYxDtDHju+5nW2KyDG8bm3ap2lpuOgagghA+nsVbpW0ok4PJtP4cspU
-7JhZ/0Xq5hYE+itonIg2qaa/ZA65sLBfuR4zgk48T7e/6VBqt+nNS1HjLrIMAHnRWEjgwcGvdXs3
-lVEBxQUyUpJCGbmZrcVXtWAvxoF5hV3B3rBppgiQ2ApBHTtixFnQuI/aLc3H1k+D04hqi682MG9d
-w+WYcfobkuTzbMOAdaR5H87uFdPFOS/C4dXteXu6diwZ1c9Zd4B0ZzFXoNmjTlvOdZo1dyTLlWut
-z4Ma2dZLBlBuXgCPt1E+WAWDG0mE+l67w3+ydybJkSNZtt1KSc0RAkDRDmpiBmvZ906fQOgkXdE3
-quh3U2v5G/sHkZlVnsz8EZI1/FKTGIS702hoVJ++d++5b6BHph26uOps1kWFMszhViU6OFTLbL83
-Rkarl/EEwS9j3Z3kYAVXxB6LrUQvfGMuFRii2GNhqv2KyGV7jG9oWIF56lvvYmi8bNcgs7w1IeTd
-5LXVnmRO5TKmQ3WWNTGzAdXhU6Dh5GuvZiORIR8lR01FKI2GE+4MgAjvyNyfp3rW59JDEVAilzsK
-YTF96KdkCY4BM8NrQgadjxZO6BwJh8nVJgH0sa2D9Wk3ySpICXvs9ZWHRhDC1yjD67yjK7WtBVHe
-IMKrSI8q4Vci8kzsJH364ahlayKjTDA8XLEs8VsFFpMDBkjJnWlWEIYkPD3eoJpytrZCCOwmzaEi
-ytl0tokHpT7zyvJxjMlhixy6bvyEOTHyvXbaoXzR1jihWvTYIjWIZTTHNNi9Pa0n+5Wm9lxchG15
-J1OuOzEO2MHPHTfslgwAoXez8OKDryx6WDVBaM+lrQQDTsNSPv1HhO6b1utCnLFWyHQDFTSivxhQ
-VbMDfIxenBgje+RAPKdHnz3+5FhlDZEQvl16dP1gHM5x1wTXntTqdaF2lue20MJ7kcF6uDYHf2ZE
-MATk03h0W94ExDF1NQ89+XHmElYrrg7aA1hJzXiF/mCijeDRCwOKIxRK3uJT34x2NlyUjuH50wYP
-VtGfHYae421m+aI/JdDiq3tql4r2/gwg7btlzwkSi3RMKabyvhzmUwYe3r1h3BQTFjNQiJcbh9PF
-VqO6w0kaBp/zOBSvy1AwUliMtzyGTR7KRR99MMhRoiv/1ssQD76zRfTJS7K4sjuFY03VUOiQ1YO5
-Zio7eR+yoVCF4KhS+PTStH0wkK4n34huzwuCJRBtIvKB2gUmMEDisyXWqJDnJVXhey5AphF+RLox
-8pmQOcFuhH7GyK2jRkFmPCekn5rEaUepSJYfJdIm9JhFWD+NLmi8K50vMwbPbFxYne1gsttXzGjQ
-h5AkYZO7YzIwX8VIXF6VVaPaNJM+VJ8cZh+CxPa8yGv9+t6nYXxwbGCVlnzEy6zGUz+7C3/RHRJh
-Y9nkEGaQwc6LZaLToeOHdbWuQzBbCHhMevB05H9gGIBg5uX0Eh+8lMyNXQP6PLWPRK8F81NtAMZk
-tloST4rWiLolauEOjqT8oO/eMRDpFrnpSpyzm6xtarTUcdj4Dxx2dPxNEeglNqZqen+fOIao8S7W
-dKYJbJhMo9tRS6bqmS2xInYjgI7Nj/XkYiHvNV0GupQmTT2hosp8rXc12k+eiMpaJySapNeQqhcU
-5XUOaQ855VLiXmtwEhJ3zl6sDr2X9d+QSgcNBwDQldeoq8V9gIAvg8Xdx77y98q0m5umcoz+Xcgw
-R5QItzjfhg6aVTrQ3iwv1Kz88mGguTlHIONk92Q4nBufE5km7RHmue63QdwFF42JH/CEDsCkPQds
-8JgvzlyffGdAIgUCtFM0nceM5qxbognYJyE3MbKBh12Hedl9ECZq7hy7rV5GWIGPgKacq6wV1dHt
-jexMPYID2TKrH2lIhM6EVRcWcZN5w0c7d3nFTmd6/RWuDYvzfxXwaNQJJtqdG5bt+LPzRVsfkK0T
-4HKQgyL5a2261i6pYwFsulZ5h4byYd6nhlgIynDC1sKZ0loDKV1FG3tM5+TSrublsOgZ+UBuNzjp
-uK6azsjqB2EjrRgCnjBjHAY3Cv1FX3AMTe8RlAmDmVhCnAJjs9B15Y3vaaxH88Z2Rs8G28exkPLW
-II0K1Kj/St21mhAQteFIsDOK/PJ/kLP6/z0tCHPWH3X5Nm9J+vZri8/+/R/8tcUnfGjHlmniIIEH
-5CEy+a8Wn+P95vp0cn1eHDvEmEX37W9CpuA3l74fkatmIISP2OiXHp8FQBlXWWDSeuc2m5CQ/4Vo
-1a/wHtP11y4jXURyDyBireaxX/gWPHRTmHiUSaLok+0yNcHT1I3s5E6WPPxyXW7/Ylf8N/yst3Va
-dfo//v2rVfL3jwptF1iQ7YTgt/7+o0TssyMI5LJeqTTzm9SJ+sKwzv/6p9g+Si++DCfir3nuBNa3
-HLUTPDWJ7UcITZpLAguGmz/+lLU1+3eOzPXL4PERePQshGrul+tmIypRGeMxOgquOmYQ1i+71O+v
-3V66h2RiZc7k5G462n5ElnUDMMS+xziWCTCX85/my/+z2wg3yrG5i6TLB+uv+8ttTIPK7ugIEf40
-cyQnlqG4mEy/2qdFk139yVf/Z59FjWLz4BDi7LhfwCsrQiDzZ+5jkqnHPseMUNfisMT50UvdI1Pi
-7306grKLT6kTP6BM/kZHFr1ps8O8d8Jm/mfMEeuLGM/lZgCexmtphrbl/QVN/cu3B9zp5U4gcX1Y
-CjlEWekpP2Ph7vUuyBKNsLxtK6QXDPvse2uy03clewO1yOBY9u6PL88/ecphMvNuIlwUvL9f7kRr
-oRiZ1wcj6TzyWblllw5hAn/yLv2Te/B3n8L68Ov9jtVCKzAjRhE9pNpM0KkjqZYmaomWiP4nXwjn
-hsNZhS7fl9utlEbhV/BC9YtM9nZIG6ax2aH+B5+CEm8VfAboM7/oKUMOfQX9Gx6qOsu+M2nW18Zg
-ePd//CnrT/nVR70+KOtqGwiHoTAL799fNkP4shlW10ae4lUcyoYZI418uZNogi/NJs0v4aE0ZzFk
-w9O//tEYcU1ax5btOc6XL1iBs7XGMhzoDsrkarJc4kSlZZw437q3pRFCzPU9j/YfPp0//uR/fCIZ
-CTFmWj3qKEvCL0uVMUoPkjlZCCTdtVcoWepjEmp9/ONP+cdLG6wFZcA3NJkamV8ubWK2g2c2CFV7
-u7nHtvA2OCTkLShIMg30WHZH31F/Ap1n3PbldgZcTDvkwQTk4n91Ng+JOcq2W6N4oHZxXLQgG1yF
-zdJVx8YSBJRqzk9JxDAX5Oeg80zADPfC7PmPv/pXDBlLD4dNni16LAzkvuKZXIWZk8YI3BiP30Ks
-EpCaJtaukCMj1g4N6h9/3j+51HyeY1qWCxDKXvmBv778s7XEjrQLTl3hkm8nuDpHcDME8jKPPwIm
-f0yAWhxxtYZ/co//cdUJgFsHJnWkw5NkffngZHEyGCrEtuLCMYBX10aUOzrcN9nc/8mqsz4uf/+m
-8lGU4ybIA9z13pdVJ2mqEV4tePYKDyoxLTGCvR0n+Hnell3lvOFlsgg2UQwI/9WVaA2fWLPueZpN
-ZjBfXxdi3Sy4ITZqTfCahgraXZMjOvrje/j1+7F1cu+4e1xHO/CCLwt4YBcWc3/pb/o4Nu+ncFhz
-jnva+z7eq6ye7od6/pPKKBRf79/6oTw3SNcpG1kCv1xUa+0EOqIIEataWXHG+6wsvVWrEOmzxPY5
-Xndd2pHRBTxpwgfccWY5dXBSw8csnsvySmc6s+7DGbxYJPGa1ccsGJPuoUg6jpXTXGJiJnm7Is3S
-zc0MPL0Xl8ZxwgBHkiDh1jSYOPiM3xmwDLa56XoIK7d4v7zVEanSpf00NFBcsWlt3YRXYd1hRFFK
-JNY5l53oFaAfU4gbR5q62mtV2eQgIVFv7YuBNKD2yqb/710ldQ2PpC8dHh0GoXzJVCy8HHW/OvyL
-IKm2ndW54RpJZ4B7ly0XpcrALW04YY7drSSJbkarFS58cMgMaRe6RTxfOhVO3gcBVjDlCEccLk1E
-RrAIdZN03rnSYJSjczm+uWEMm8iELg1sGKXIa5lO+N8ggzvzLvD7ttqB6plIjufieFFJp6tSG2Np
-lufeZlnb+D1NZUDCiKBgL6UtASS5Wp7RnS/jwR41ipneCdMfoUFYO/T5ub2pe48LpMbWv+yWlKa5
-ynQot4th9MFFCAroO4FqvrkLsJwzvAsrF73IKPPuB+WQJs0wo4E43lt1DkdoR7+tR9RStc48v1ZO
-6RE+GKakgeHP7ZOTmMTUIzMdXKRL1dy+DqpB9VrXQfl9pB36gZiyXhuvZWlF61OSYg4Y+/dxITdp
-S84f4QXSAu11AZc5QSlVOO715AYaWz3IujvDrBMG4bJBpZzEccn1DmdjD9UIlIETjBW83sZiGEab
-wpdbxLHez0ZXSFKT3iKftEN5/mZOKnyA52kV+Cjx15GBAqFuixhMZfTzC5r+CIsXzP9mSZhIlRiA
-CeIsfk8JEKhRbRNYEJWEXn7PWoA950LH3dPKVMIEp9LciuKhMZ5HDjYPRecgwg1LR7wAacbu3c8p
-7ukUk/dzG8ekRk1mnz9LfIUJ3L6qcredLdPxEkf+eG2WOArwpA2Egc7dSLAyfdMnL3EHJp6+kVzH
-7qpF8m2X1jbRYdxFXXkA2eA1JcSCaWMpDmQZzg/uGk28RWHdPQb+uoCmQT3FuC3V8tKmfv1JWgkD
-LfY0r95NNL1wPSFAeR6bvDOJnjTLE6ANlx62VXIZs3AJr5pWiXLrNTzU+DimilXLTP3zgqQw3ziM
-uiF7FTrv2Wnh4TM0NqU6IG7kaVzBIOpIBATrSYNYHzuvkyLRdgrUx4Eh1vluIgChgUQjrcHy8tHe
-5vFM24YwNlLloHATCUA+B1z/0u2HCOl1+yqMNvwWGKpQO6NU6bgZtbDULmYeUG37ysRBxkmrfNLp
-wpgIPBCsZpf1QYHPcOckQiCGPRFp3ZpDxgTK2WQVscx70skmkkcTuowkRywIqBwtyvrKMvrpOYEQ
-f1MCG1lh5B3T/Ya2LAPQpezEZkriZN40JLOp7dwv44dsLZwAbiyQHvNrJecma/RzycNjHQw985yn
-1rCMu55UiCMazp4ssyJ3f+KkBiQPm3vtjjstLKEytIya4kJUWNjThkccilyMjWiWJDKzRiXl3Vyn
-brextDVkzCBs8gjgTHi49ysPu8w89l6Jk78DPO4JNVo7zBPuW+1icT+ZENKmLee46blFjs/NtRk/
-RgkD4asiHDEYQ7cGItzQOnzGC2m82B3iHuZAcSGjaenTgWcbicR2znBLb/WQLLguiRq8JejdkZHb
-mzl5jXCijK6sLucYE/y2NUid2LCo4KGq3Xp6ZMyBBHTQjFT0GhE5c02iEraRw35EbI+pU6YPA/Xy
-GsZaAYLog8XamplA8akZZsOwGDr1jashXUyfHk9CMZrABesMUgquYBFjGcpl7/LEx2a4rZzVlZos
-pS52AUMqnAx2ZRD5MWdkGxtG7MpjGAd4KnkD9aFytZTXYdaV105LX3QL8wcZS2Mo9x7/OiJVx63Q
-58S9bNShXYw5OZox2LbL1kbB47mtKPY9kP04qotynTpORNL14WTrTSsrO9sGOmMarTvE88ByFBKb
-CoxBttGWGQ/QC5CzAhRAweeGMymiaTHQ8RQumRw1Op+bHEcTTicWiSLC9UXeDN0HLpGGIsimvupx
-R0T8IVGhvU+0g3CBuHgjx5Vt3onswbKz/NOaMsKK6n7tEzM6U1ZkqnS+d9KmZPYl/NmJ6Mj2xVF5
-S3VLnL37xCOPJcMxmEpvkJN3uCnSRb2QFpDiiqfdC0cfIy29TS/gD3FTJN+TbIbu41tM1IeuA+nS
-OyqxonLJmSIOtc7dXdcojFtdbDvFGZmWYEweyOqbrbx1CFxIGwl/6CliwCvdLY+zNsJH1qJSbMm5
-QC4SG2Rpyc4U7zQPDMSUVOb5xsbPl20U9KVraoffk5y0+QNrQH7HY++7u9gddXukJcYqbDCGqo8K
-hAYd2yHj2bDLPrnHuQybDqywYohIV+GRQbX/SUNo+Zk66xu0SPjHB2XjZ0NrkHky4hfSdw5bn7H1
-wDOjea09zz52hWd/ougNnb3NaMyCVChLRkVYAD9IB2F+jTSYKWJfxsV+EJWfbbUgKH7jW5P31JVY
-Xzb96jffQHcBAGia2nmSWLdg2tESPg5TI+uIrS+4hnMkrZPknmR7V9vmwYv76kD8WGfsOWRM7yJt
-PXGXi4AJM4Q8x4iE7Hx8wK7Dcu4YqKE3A2ItiFEORiDGFGtwZl4YxAI7Pmq02mVwinm7QLHejqPa
-BjiVW4AGpZjYMSjWNrM/+s4GNiHIRm2O9pOnhGjwW1nlDyhKZJdWreRyOU1ePi9VratNM1Sp3LVo
-FWKWA/TVuwR5UXNDEJRvY83p5BgJE2nAGz+rnHahcjySlswJq6NjMjzcK2WF/MiqqH5MhHJAUSME
-Fld7jQCZF8WAFbopB211L4uauURxVenD6CX9GzjQ+RGMOtwWNWKCR9TRh/KKMVc1HlC3+fICcUTs
-0MInnf1s0lr66BrbSbaw+s3XMPHHzSIwiW0HI3bMbeYCcN0s3GrCc8mc3empRAitcr+56OvK+xnW
-HK2Olh4rxnfosSuqSS3jPUim5VvNuOJy8tzmtm58NBJNM6n8aGboXCLkF0h1mNw0iKagr0SVKBPM
-pPza35Nah/ZFl3TpRW7m6iKdSpZvFMiAP9iTLWpGZi83HN/HrR1q+4ixJczx/1f2UwpImzmb8tNv
-GSrLu9pjAaNnMpjvi9ZruLAxBG+LNSfUFDoXzwGgWpQa3TSMEYhbwKRWkth3AGrRP2lu/wVxbMmj
-rqiYCVda1EWLZCsDFbDoHdO8PGCY6JbTqvBbU5HZxU7gC+RDCqjkM+6M7j5heHm3LLH1oIKh3NKu
-dsiHSqeB+1N1/re4lIgiB6v7hCJa2ptuzBwKl9AgPbonO2ZjKzRoWEKr5LFNQpStcVZ9R/JodfvY
-SwjRYsoSeywj0rviO6Tf+3lyXvzJGADemuNiHzybJOzDHAb1w9yOKYPtpmlviSfiHfR4Inn285AZ
-+tLgc2TP7i/gzbjfxzwNP+k/1W822g/3xuL3Z7Uk4KiIwKroU9o2TBWncuruBha6aou3M/nuYqAn
-2aa0kW9RYKCmKVO2fNeYH0nekfxRNtsdtWZdjnzbjtF2Sskhr0fbHKAwQGrMNklrunjjh4Y/pbVA
-rpgJbRPMC7Ewj9jDJobKlsLJ49gcZZyKMFSEZqN/p9MZySg9XBOva96jNsT7IAIoAozzdgIsqs8k
-fc1LqoluYsELIbTy9432R1qMmqEnf/MtmxdxoUOVfqLbncOIeBJEG3pcsBm6VUKuXDuSNYUKyVYP
-NVsgzipX6A8MUcVLb+CE22DF9vkRXescOP4YDMxpe993boBdv+xHm3yVnLYBxuIQJnCPvOk+TQdi
-54SfNTdSD6YTBbJOCrxJQ1bvZOk3SG/imsop1dqBjAFC4MFPrfzeIf/5s9V2cCUgnfoksLbDc9mk
-fbxFBlze97niWhEyTbwUKd4+1iAjCOC/hTxZ6MRwUHPgnBMKMFZZoydbmjTblGLHotJ8Nww7aS9L
-0y9eOtB6NjurLn9YBYykTamU/ybmxEwOjpDc0VrV4nUxLZ0dEsocPxpJOaY47N3S3xmmi6AVKpSr
-o65pBQ0+N3vWUrAI4j9t/KORpCNmYVw014M79u2JsQZuqzIN58OEWARjZWaoB0LOyzOVGgEnhu3x
-6ypqABmNWO0eZq/guja6H+5lEHTpHvelJs86Tb0rzq3Ju8Jm8jJom9CnHG6uGZVO2yDwjO2BbdYo
-eMitdFBRKI3i+xzmC9VL6mdk5MBi+kAI7OH+dv0io1ZXgAgTVYTprnQKOZ1VJrJ8l0qMsS02Eqzp
-heXLIx5jvn4r4+Euh92f7XJrrURNxjLfc17HFLOZN//gJy9vGDoVub/JgqR1NNGIb4lt18XBrzOE
-d2GHk/MG5yhHUnbNttsMZa9gUBOu+9gEnEEjEoDUe93iNtsYYEzRqqLtEtQKZSr27hB0yX7M5eBv
-F7Pzzw7tjuHSm9qY02gJO5ZVnBgDiFG+xKXlhNmb0RGixkS2U9uhMPM7rzU9Tn1TJV4DbRvBsXVa
-5L0aDVi+caH0nGeCFUJIySVZ12hC+a9B9l5+lonh+lHT9IG3g5onn6RupgtUHqjhgiTvLbVHD5jB
-6q6XWQBymdKZ177L9DDRcMgaeZx0FrziVg5egAmqb9jDi3swOTQXaZFzTsqJAEq3RVkm4zbBE/Ax
-2iPVYKqKjmD2pfJQO86U/riFYkH9nFXirIZgovmCdB+BFsGhlOGTmi/oXIx6ly/hcD+jxLpHPuZg
-aNWaY1cCa/mbB4320zUoQjlkjTZAc2KBCPv0i9u+T121k6CG5RZZ+eDuCgK5P6sldX7CJ6NT1A1L
-iInUm4eb3LJGTLicypbIxYR53WE1yjdIb/uDzRkL5x30Qdz1tHSqPa9Pxq7VapLkkAyX2baeEPQf
-vHAxMRFBR7E38WgjBQFBJl8cHyJztDCMQwZC7wp7a2mSqqbZs/G+jr9XkE5suFtpTEWzZ59DBjOM
-ygaY4OnwY3aLlnNh59uvs9I2wrB0yH64jYvupWLtqSMQaKneJB4iX5HnT2PMPSGZiki2GRyutR2Q
-TiLy38PQG3ErxxhkKZJkqE6exG3GGXRKehpeyXBhVVhweYgc9e7XRvwmyLG744XGvMph0Pu+GAFQ
-HX9Q4auoKYHoPeGi27TGHP80meO9IGim0u1SEYMHY/qLHzAx2L3LwIqwr/cU/93I7hbT/44QGSF8
-Urxma3+HY3/gmtVzGRbj6wTTTW0c3SHmj8cKIUNSdcupSeryDd1sdwv8ni5H4jIxQ8Bni2uS6NDB
-DdYk4v3QVF2z7zh5kR6fZ7KIZvZiYA5DL+FIJEyWsjUQ2/38vVX7v9iWX7At62zolwZ2RIzzX//0
-+q38/I9/339+fKq34t8iIh+/+qD+8m//KnhwEDwgWgiIgPDoMDOT/m/BQ/AbE3M6zzZjvhW3wVzj
-b4IHy/3NpTlthYLWNIwWn37430xNFjYpRrz/Dct1/hXBg7PqKn4dLTgmzip/VTw4/BkKjHW88su0
-2JnVEuiShgZrE/Ya+ACj/b4G5iYXiG7G9qOpytAH3ecf2qy9jAP3sNT23hL6AghLDy8XcKQ/N1FR
-vCofupBjnkwZXJTttK/q+n7JuktVpeg6OVDk7buaaqIzCVUr8uZTB9m5jOE6GuXd2IQtvedq61oq
-Ys/dd0KpKEZd3Qh3b4bjK1K1wxwnzzTGD+MQ3ObFcok+Nt/C1Y44yd/2jXtHi3WnknA/jCXITVhy
-oTLYfNRB2um+LAj49FLz083jB2mIYxWQ0l715qGzw9extQ5zZp3tufkUvfOAXOm6czOioiix/PTo
-5DM4CYjhxXSybL0nPxQEL71y7fmHSjSviVOVm9SNz1yZM22c/fw5Nled92jn/s4yqBn656Lz8YTR
-vxOLOlQsex3BrTky9SAEh5rx/0Ii5SVcA0/ke3funyozucAeUUc95DeHMhrzQkYgsZN8FxzePQeJ
-Zx45AQUGYQc5mIXWIBUCKl9lEBk8/pznpyXr4UMYW3JDT8hzI1ZZ9qH57DsowDqoTwHdJzbOenmD
-Ybfqqjc9LAKnde9k9k2TECGAwXGw2Wo+0rHOFR5dU943JnCU8UWm0z5164PidvrX7EkIy30kizRx
-53g7DVc+GC2PrDhFLcR37X25yyCWmbgxGlsdBRyGqn1V45lFfQeqrJ8/pGtvzfG+T54Zqcz5T0N3
-+9pXe198T8gkzrOzUdzbCUaB8LgY+kAM5dkj+XAysp1HBwLxR0hy3/Rg++WOLgdkH3mI84JSyb+c
-MDMNkuZNFk9b3032GrIQBc4R39nJ972XPGlu5eLCmR2PKQogK82iNOQOdvFzDK+j6KprEA1XBAsf
-LOEeJhCZ0dC4e0sHJ96oE1S2fcppLSgUxhd17TnDoQ+LfZPHh9SeEchlNE3Kjhtn0tFIrtIp4Vvl
-PKRmcDGGSGdd+6mxO5DJMEAWD/WiFDALRhTvdrGbZ/GRBtk+caWNM1jtrHC6LB0ctKF5QP3Xbto1
-7pu556GY4ptCiDNY0oPjxVtQ/JJtOfnWQlmm/jriPkKmXjfHhK3swNjeZ5yTRKYUWOn7b3LsXwTa
-nagr6LyyAtyrBC61pCEtg/ZiNpuDm8W8fenL3Nr+iWzLk9W7720Cr6fTHmiE8o0eSLbrFAVmpk2g
-dQEiDY7qD0E3v9eugeY/fWDR8bemMT4vZVsgGCRxOyf0se/dbSuxhryQJ9kuu9HNkVpvg9buvhup
-EwyEoozHAFfaAU3uezh0emfkY7PHnFTgtLEHQg+89ybGfckRMLsu2+CjWvLHaSRIHBgUZzhtwjHt
-odkYmGhyElU3tpHRhVFDuo/HbrjPmuWxrPlCfd5eQGAis1vBKBqTZ1aevZL2bqzEUXp55IbfhHtX
-P+eqiApY3F1AFeUtW99OmWbOvPpuKfZ1V++NvGMR1TvNF8TAcWuPw16X3hBVofUzH7rsVOTiNKTL
-rvFjHYm8RYkWHyWY13jEnGi7u9SQ1Uasmc5gAp0lfFCGdWEQ4bLpM+fCHcVWWcBi4nSyIyvRr75d
-X+XeeJUCogBlepjrKaqr5WcoOPyR2mpvVOtFwvX3EKQ+Kg1H2Q1PYQhrYahuPaCINFqrh9FMj94o
-TlBhHo0gPnhV/FJ04X6U9CokxuzaPIJ62XZefq39/koOSgE+WE1mtBAhTR0GhvLLvASb0AreQUpd
-4m+CGRL8wJmNqj2/Amt3N2XhyalLcBTLq2t1xS4siFT2ZHIDDJxZQyPCXQn2iyxq+qW7MDfDq0q5
-i4hUYTz4fnnlwgr5yzD+fyugXyogdCQB8/L/N7juUKf/5z/1r0rPv/6Tv1U+7m+ssRZegNBf5Zyr
-OfyvSQCu+M1e7dj8b4JH8QVRFP1X5WP/JgDW2Zj5PPQcFCW/VD7hbw5aJcb20KctSrR/SepJDfal
-8kEsg8/8d3WDhZYrWPU0v1Q+lpPAVMslSBm/xk2aYyFsTmM3gXH1vTG+nkiXXkFf61aHASUPdzGD
-5p9gTrK1d2clH2acK9Y+N+vlxRTy1kWsLiirc7ChHeuTRXeVSexS3uEQ6sSdnIJhOTLLHcJzDGOG
-rnW7dWHEH4idarEFGxDv7J7polkkLNHwxBhuNOSbm9NHBkcLTGbfPM06mM/kwuvPBVDeO9FQKaLD
-stoFk2ANb026LZbLbmJPXneAIN/hyDBJxnWcIZpcIKU1mGR0QrRejXMnjPFH5zuJuxkDNmiALQmM
-NmNqYrVhatgQpONxVbYFWWo7z0NJSss69L95fReE77EXc5xyxmZUO08Zqd4PocWx06BDoYkySUZ1
-lZUjTaXRAzmMBRdoyKqm0OpjQWNQEecu5pfSdNMCAAmHsShsM++i7Ru5HUQI6jO32uTOmS0O2X4B
-jfKlMgASVeU6FzNTl2nOArEMRaNeKazGwi+9cwwI9hEKdvwCvw/UMm/M3vLZwRuXqQb8mLMQW8Sk
-dDYuJMM7jFcOwS5sya3r3YJX4a8Y9LKqh8EV4wEnBhE75lDf0bTdW4V78prUewE0Co4J8BYt7dy8
-SrCFbdoJqtgblqMnpRHY9zDesCkLIpA5fhvbGv92VBWTtYUowq8IDX3TGc07RhkeQnvWl2mR/UyW
-5FQ63R1qkCBn8mnAlqKbaXbXTctv9YEAAbQ5HLynMFMffpl1+cUYT7BZBFyUeMt8NDyEXu3B+Y2L
-lvotq+Nq15Rxbm1oLRb3Sc2UmOuUj4+DmfBtGy31uc3Dd4MrK/egAOyYqqIKH4q+kz8mBuopBI02
-i08j7oY6F9t6rvZqcI/V4n0kRJ3vgipjz0SHIL2FxjGhBr2bXKjOvyS8nU2ece0J0PWjLsyGI3QC
-utv7qXR2T75xdjFawU90L8RiuIQM2MWhheun21lCFDPJbjMfcZdfaBKOpiDYFYZ7wCVA1dvWEb72
-YmfGFMF9Gq7agZanRyeXAfYXgxCtPShEWR0WwXBnX/lTeNECOLkKcNaXEbqn66kfLoQnntHg3BTG
-CAyP8dKmscdg2MOgTs90wsguMqowu/WK5VuYibcSaxigB7gm9yR7v0zeVBGZJEX76FeB+FmwY0Ed
-MhLJQyO8vT2L1zJZ43uMuBnOHGfqDwDcQ34C05Qm+9JGxrNZc5aukeVi1mcTG9Ulkez97RyUUITL
-1jgBv/VWPxrjytNUWumOiekQUih3mCwuemtJftS+cM09A3HHhbGNb0vmB9ESPHSStT/Tkc2sxt+W
-AU3PTZXHZnKG/OQu3SXJ8hRDNKvm7HrGzu4c6DE54UXcqpwbx8mMDk9D7YbKqLRbpsUjPPAxtuxm
-2yyJFNtQlTkjQin2uHsXPGm+8q4FbDlIGHTFKnBL5rhOx6pqepRmkDdv4xTDuC7hRcxtMEy7HhRE
-zo1roSCMDa4TjVXZ2siKzjyYIv6vk7uF4Eg4s6rIkU1oIzvN2lKnMRNn6YIG2tdBgOOulpMlT37Y
-OQ6iGgJFsl0yh2l7cGO6opHj4CNkuoFJMSDHoT8ht2Xty3EWtTein1d6hRiH+OYvgAkTJ225zWoG
-kC+jpK7ciF409kEYSdcdtApxYhGy1gTl3jTALdKjuSoast/gDXsHsCASBEjfvwIlvbHM8iVOittm
-rC8LqaBA5uNNgm59Xy0A0SmwEnzk07uHavSu7RcDj43Tgp5vmRGb1id5cMNhMWp379Yx4VlwqL6b
-rfA2c1pLaOYxRm5l3zbx+DgldMPTIvQgSnfpKe/q5bbG1XwwUozVs+kFgCOn6zRR/SHIQA32tUHd
-6PhNxB7g3kDYcLaJ6kA1wAGEtk0/wM1L4tL7AuI+7vkDBlgcYbkDRx0d16WVulX0f9k7ryTJke3a
-jgg0CAcc4GfI1KKystQPrCS0cAiHmA6HwolxIfuJzMiwCKv+5qXdJq2bXR5QLs7Ze21ywB6tmMbE
-KBCqJPyIyzYsvpQ1FsoW+tdVUvjD1lZ1v6dOOdzg1x33PuDUfe9O39NBfVIl4h3qaHetRecVWKa6
-AtFjPmXwmWi9xpvcrp9LMJBXQVzNF7hOnGuwz8y5YZTsPBcXvGeSgkWiDvZsXvHldPbHQv9lOiiA
-FT+FBoTjfJsjkCFMcjiNZsPaeHVcPAdoplZjyKWHXsOu18aEn0PeeKxxvu78eZ62M4fCOTZ+RqwJ
-7LE9UliQgtzFwv7WwrhbuZwqrxvPl+Yqdtw7SszDdVKY/SqvQ2M1JF66lh56F+woKTCXJGmfyMlI
-H3oS9372SZl+iqSuGoQs1KG2ePzEB5ZP9yIu7JFTNt+DBaxi2BI1mX5FhAqJXloATC3IUjM8Re1c
-NBwzvxCf46E6HpEi8inP3a5/6YqFnm1/xRjQXecvHbMhKoEl+CqfniwKMZ8cuGhfGg3nLqyb4qsJ
-MSpd+ePow6w3nEdWDqIl4rhTv3mH8uEK3Ep32Vdm/8kh8uGX7hQMLySrNPhokQe8slb0GFuz9WDP
-btnT0q3geS6dQaghZrue5vk3fVvzwZ89onZsZewh0xq38AhSHyVlXT8tpq5sK2KL42wZWZDLsat2
-W6r1DmZ2JisoYyxbtXeXtZ7xyWnGX95kZw+xB4n02VBNZQO7i/PI2Oo48TYoMwa5nTpiWFZ2GlX2
-YsZcGmNpnDyRk8jLSyzi2mRdv1QOLJM16TAoVCkE/yDxJN+x2NmbngpSs6abVDyjxiWTsnWm7qmI
-g+J7p73aAdbTROpC9RxqkyaDgyihYHzFqQ8qNSI873KCdreVMNLuusq0wbCgXn4cnUb9MJnrILlV
-U5fyO/XU7TTm8EedZNU1uyGz2ExydAGgJIO9GcSMAUJiu/uRSZ3kl5hJw7BHqBA37DyMAL1ApW0m
-zDZb0HAZUNhfg2+yYULj1dEyzysIM7l0ravGQDMDjIxpGYVkAjYBqAt2DhvNWe4s+jNZJI+5Pf90
-2/gLzEa51qK/yqG40mXgns2ROV46JFQS0caSLQhp3BhucO2Z84MTs50yfXz8cvjRmiXBPtizTb4r
-MCZscLYsYHe9Sy1+RaYUUzuxoUy0HOrBUeqU+V1w8uCbQfGX7SrTWeRhRjfsyNxmK1M1y4bOB1My
-bMXgVPkVh0hIlw1HRcEqv26j8qFVZMv4E5W2oSVvs6L5TXmN4zQNLGfVsa2Ho0NePJ92XXeGV64G
-NBgaKXmv53UwAlFdG7aogKi5BXqrjECUm5giafqpydD4PoJg7tRT6qfJtPOqoEFDQLVj5bgD/85E
-14igzaInEQS6R1nhJe7E9Jy5eHspfRbVL8w69Vr56bZU6FsLVEife7q0YIOl6roHw3eWQwKKkeyC
-XMyCljB1k88Ubft6p4rW+JWFIzdjKouZ8mIYm5CXYzA3G1UGw6+p159cetGXzL3iXgWz90BQUOD+
-gB8n7GvsoP1ngdBp3+qq++67ylM7glGdEB2JDO9j1pqvdhu6d7htlwDeKrzD/D/jbZrryriqRZ/F
-kEQzElFniuTgBtFS9beJhcCMrvhU5Pes0Y29TyeHMgPnitT9hESiBLsTQGi6gQQwzvsuRl6xpWak
-LqpSusxVVamJdwgwVtDHBCNVI1GixubFE4DjtKyMXdHZzrMBuWIP7DlZpWzmjbsUB/m2bBVCi9FG
-fHhrldyCi2z0i7WsOq/5AVugor1Sx+0GHVk7rOsXcLZtjG3D5myu7svAkHvmQqfF75yZ02UApYQq
-EHgEoIoYGKs1uhjBamtjZN7GszMEsHOdWt+hF8R80bcTC1lUonVZ2loF3tp5nXPWZcVnU27tc9Tm
-MxBfv75AJJr4qCAbE+GDkcEIp+CIbMQhkolcJkJgSAjCIS14Aa0Y3Gjcf0ilDfmS/LEOAwQ24fgG
-rJJ/yRdeJn8qnUTubdQaFe9t6FVwE1HjL7J0T8ldjlblgzAw1bfSJri0jcbvBAJ8bnnXHtMksgh1
-CjlyDqJyOO3g+dujkr0ME/bU11bYB7CvHaO7trh0cMPaUneJoZuv7gtb3SRm6p7MVl5y5vq1N0qK
-x7KlgxWUF4iTZ4IGxq++Kr/FfaSpZmnjK8dt53dPOmpyX/E9xY987WS0SArpHH4L9AnRdTtQcGoq
-yoGQTR6IUAXaoz7mBKDuy1peAZ4Xaw5zbDhjI92ktrnmEUaocMZhl8PLJU5BrdABYopngkG4238o
-KWJtZrsFekqS27pXrbcCDAZLqIgea6goq7jmEGU0Qc9+D9HR4xQU134RXtkKzsLaX6j0TuRBmKDb
-DSJN/DbcKAAZP0V62rdpAEtIvNDtKYDSoVAv0Hs7JN+mjmAqPrIuWGt0ohDyw6yHli/ShZwvXyj6
-cWSVHzGJzwqtMEQpDkqqrS7Tl5lwcnVqbwQBRQCBWe/9C5KSo18TzO5snVA3fkxpCHk7wxI06dNS
-0vvGIsqueTA9+6sfxMtBfYrGHwN/G5ktzevoQ9NWwC/asPT3cgz515W3RL1p30L4GGh2jb5fWEit
-MHM9YJNAxEW4dB9fi0F68eekW6TfRoIvB8l0CnD2Ew/Ltz9qKROIqSMKhlUSF/GTRZsn24DXtD6r
-uGZ4wmeSYsj3SSrmTRcLetgJVvI8tNJnoJtzsAHGwITIW8C83fpgz1NkckifkD5WG7+vPfEdTX9E
-fx6+9NNI1s824iA2riH9dvmG/2fxU+jIQNLokej1ROO6G28NzuCXw+A1l6BEE7KgO9g0KNCkc/m/
-7dTDlqht2uJkP/X2e/O9jP/7vw4yMF7+rf9bT7RAQGJBMh1X8JeXouH/qScK/z8ksaHCdEz8WI4n
-Gev/1RNpltLWDKg1Wj6ASPt1PdH8D+StGB/pBtkCuZT9N53UAxuaQ01SCIzty5+DE10cVBPttOOX
-U9THZmIQLU2gWPJFzVNBr60OxYPKNAjCzI876L05LOwzDiprMWK9sogt42PnxMXpWYLyvLVUO19V
-Mx3byMTQmRWQ5PYBR1f20eIwvNGiIQxQgAp7ytBADpxoBhppdhiGcmW0rXqOG3Zmq1e14Id/hn1t
-bj9yM9jvWT69q8Di3h5Yq+yc88qMgm2VKbYoue67H4M3GajOxwAuVpjdtv4ngJfxGVMXT/P9TcBX
-6nqmhTrZO/CRmegqXM6TwKsmkVfrjtLivA+0BWD99AUeeMde7jZtc94qx7Fd/HFv73ZRkjNBSgFk
-5rYPn/WUOpwigO5fI+Dp5f7vB6PDwkq9vPdUqt8O1tG4j40ObwbpouZVjWj9biilsdFeNXw8PdSB
-eXO5Lm8ZYjG8SKALyw1+9RZZoXAnaE2Ee6cy/JV21vTsd1LvM9LBL9IU1Obp8Y7cR49CPv5jPPS4
-ZRd1wqvx4BezTkzM4F4l/Y2BwGdNlaRHeOaLv39kvrCJUVwuDVXFwbuReIt4q0uBqU8CoYOA6x4S
-hFU69PJLsmJOX9hBc2G5kb5A1sGHaKEffSEmvLowyCtejqu+XFkIJtdhtbRCDYUondD51v6Fak6b
-e4W59IwJ+Ni4aEcY0qEmgvP+7Q3Fo2DltiMZdyiR6Y9w6u7syUS/WCbx81CJ6sbXsXEGAHHkMfp4
-4WHisvfn/zj4HLTURPpS8UcOyA4tLPnK60xVaynZO52+sUfeUNovApMxVAHYDgdvKDvqXqLtoALZ
-zmyde+THk6f9CxJa8PqUkXFzerxjl+bjkUcZYyK6ORxPDTJSo4+1sWqFd2kbHPdx1KBr8elXnB5q
-+ekHU7jPAQpwg0SUA/Tp7bMTHg3taEIlaULku8OUN29Ibo13/2IUGMYuaBbPC17wEa/eTJOGDqow
-ZhOVkousQtQGWLmGM1yMo7cNe/6CS2YJXhRMrz/slhZS401s4VTujnJN4FU+XQgyozny4zk5ZwI/
-9lbgtheki6C2APPwdjjTnL2GgtnyAnZPupsfi0qBVkG7tAL0rs48qGOjwZv2odTAgRCLWOz1xdVl
-m3pOzcfdTCq6IrHE2WFzlZfmONbX8zD3ZxaAIy8GMzJfMy1VxjzEq2TSrofRgJo0aJStqzk2bQxQ
-lRWmZy7syFNjCMe3/IC5ywyWf/7q3RhrYeGL4DsetZbFIoruNzKrfKo/Sdg8nX4Rj9xFbqKwbM8n
-WQux29vBwhHvZBf5S+5WTLmYn6N+lo0gxDs0kMytci3iv58dWbF5522x7BTFMnu+ur4ZOy4qG0yj
-qU7CNfFFG7EEUKK/QDwRUgkaR2s4sxIcu6cW28Jlk0lfe9H5vR4z7lKjLgwEJbLNr2wKjdu8IMg8
-E4jnTt/QI7sulu//P9LBFtSrTfKoPG5oQD+ISjyV7U/M18gmaGXha+k6r/gwzBNRSSlO5XMvz5Gl
-J5BMXiTOuSAEX/rtr24u4m0/j1uMf904d/sZQ8bDDLxto9xWbQ0AzIjlkvDz6Ws+Oqi3TDN8HkIc
-QtmbIhishJQavBPc1CTIs+di8p6JpmhgeipnN5AwfWbM5T4ezNPLQsAMuhw42HO/faL0stABOU25
-KkpFX4ro26Ae889IE9OfVeEU39zCJLndMJtLe8AadvqK3z9l3qKFdcEOm6PL4WRgCkI2nRzZcS9H
-6xG457TK4yaCfqz629k3FgeNam+Nuj2zEr6fhZbXly/HZS1ETnGwtQBSEIBDKEGeguq7Xw71W7wI
-9uPpy3s/KziSvYTwyPOB9nW43mpZ9klikxrMBjv+FqH4jzdd1VblToRj9a3r3ej76RHf31CGCaDQ
-oM+1EdYeTHoxfZ7YpN66KjpqDSuVlO5DQPJmREtOJDvXIb5clhExviHZX+rM9HBs9JddPcZBuWBT
-3r5M2qCyZAm2pWZdxzm19RoeHvxvzAXBgBZqlZThPBCxY1LmHZRh/T599e+nJ4c1BUgNMnLH5vD4
-dnyPaF+2zUwa9ojWjP9+z2oBUwHK4e6vR/JxcZISuQzIQf7tSJwl7GDOWTVLGojlppz9AQ1Khkh1
-5+nFhn56uPdfKbprjhXsE8GfAaJ5O1yLPzUdOxrqnp2rXywoYGrRyVpZaG27rqz2UYF1vh6w/VGB
-Fp9Oj/7+Y2F0zyU0gt2cZR0STbre87K+ZfQ4b9Jrq8bO4qal/def5DIKhQ02wiaMt4Nr5Avxkywg
-upI06IAQBXGHz8S4/BeX4kOqE4xlB4frdEsiLBIGBvGGuX4AQ0qOX2KaOj4zsR358gEiENFFvUay
-2T7YVZEN4hYD/rBVZKJbCDCVQ00oossmkOMVPivjr7eoAJrIGVm4NrAu5cGb31IGrOBJlwhI6Ejn
-2s/v3EgjP45G8XD6Fh57FzEowykEwsdsc3BpRZrg901QXkg5tJdmqlAyWaLY2NOQX0JBNq+U07mP
-bpMiIpdxfeZTODLHsK3jlvqe7VHzOphj3Dwjg9NkMx6OJH6sFCTOB/D5hJuZo2w+2rbhgool1+uj
-SAB8nrn490s0Oy5rqbQtfEBU5G8/xAqMCwwe4CIWlf+vPIzEW5U2H+O6R7SDqyck4BFnkPsvJhwG
-Dmy40OxHmOLeDtzRT1fEjVESs2jcGvzCS+3D5LVknz2dfsDIF/nDXm8KKE4CZoLPJJcanOscfopN
-TOKIgKbg48YE8ktjuNskWK17Oqe2svexdEoEfDZy3B3RnFG387OcvO/WCRD2uVNmfZWdTyonMoJq
-3iW28n+XE/FL+KSHkfY/2q3LPFpOM7qIG3jbJrBBzwLKjOfAlYBx+oS4UWkOyHZmAkiJUepp5BgN
-nZBtwZYGdoKO3T/EX6QU0q26kKime3WL5UNCh9SWi3kWOdMvREnExtD1HIk+wL1nrJFk8cfSPBi/
-Ky/Jf5pOiQkXcpq59NdGzHFF2+KitXqIdqtIC2PaZJE/3MTFmMhrS5qRWjU2efWLmmreN57O3XVu
-ABXHc2La0RZ9Sf3BSumlrPTURE8TvWyEkFzmj64TTsD0k8O9mXtpx5sp8NSVQXumRwxv5d8EiVAB
-XhQB2IMUrPTKzCfUHyLoypvZA4+BabIZt2SeKBfqRWhhXfYAd8fwVCApNNCPqBZ21i7ukftsRmVA
-a8Edq/JNK/ruyuxcstUlRwQ8FFM0PHYcwjqcDfgCYe7kmPkDguAlTJqs+gFmA16EaUEk2LHAhh2p
-hTU8X8uqhLmyi3J8zKWGruD0QdZCjg+qejMkVV2tBzqdH/opkBzwgr57jPPQIGdwsrvrpGbrz97e
-YR5RhdXfqdyx601LIse4HmgXfYQDAqmLSQTvAnKXL00lu88C2Rqyxj5Jx40POYgUszi0fqYarMtG
-a/rQW98d8ZUh2ugAsIyqGXepVyHSwh+fPWjPQg2UNDFgDWzbsGToAbE5mgtcr5tYBnWwGa1ynKB4
-TxjyZndp+ZeUn1Dwq8aN1qk9G1/jKps0YocSlzy4o9lYNV3kkRtRoFFcq6Se+y17VrwtVaKTzz6w
-/nSjoyIwNr7M+x5ZZY1kVuTKfyyUiNt11xvqW1hTdMeh3s53cBhMbhXArR6kl3Qhagdh8LEI2qRZ
-Oxpuw66Y6eii9DXUNUAZh3yzOSB1F5OHUkjXEqzTbTO1H0kp0ti4SVD8iaxNEeRCevu3uZDxR94G
-bgOCA1QSqTl+wf6EbCjygQosiQ3CvswKJ0T4EGvb2iBXatrvAz6k4c88xU69dj13IBuiqcxiG0pn
-qDdh3tX5XpetZX4pRDh9b+umxD4e1TGZhn1kZB9qoN4ZyJW5XVJ9Wo47pNBkMZ3jsGr2g0Q4+clC
-+GrAUvHC/EoV4zReaLdOnGttJ1GMdGFqBJEIdTt9icwheYhLiUoXOQG6VG0VWb/qG9P/PJiBtLZC
-FwYiFM/MkStTbTNX5tzIe3gnrnffpaX1UdUxKhISkar4AkaI3WwaEkWbWx9hVP4l0hghtnZaxdVD
-V5qY2vshVL+6sSucjZnOOaeXJeD3t+ItwlOUu+H0rUMeQBZxH08lqmv0uiR8GnZwnQir/T7x94d7
-HNwl0ax1Tuu1dEqnw7PghmAFVqWL2fSp9xB0oyOCTnGZMgNKssTLFudamSe3YzeP47Us2HHeDoCh
-un0yCoH5uVfmZ2PSOlwF1I1pn/OCKxIf5rDb05Clv56XHQIxI1PGfed2Otj2y0tKpxfTzh3AeQSv
-PYy0DsMzkUObZp6wCWUBNXS8YZX1oBYeQuy1etinTdJ1ePCN+EYXlRPvHHSRxnUeFyr5imUnje+C
-wbMBgtDDrbdQwqRDkk5G53ToAmu470PI79/JNCES2zfJ3F7jPi6rdTumvXHTpZOH/ZfNJ/Latu53
-ZkbyyY6O1SgfS/Do7bXXZTmid49nv+sDe/hDmGPWXJQFaUCbbAq7lgcSyvQyMq30pwnXKkGBbCLr
-gnZZ++s8KGlP0/4ZTOQrRi1R04VLLFpdT8ZFUozBB9uJzHBl69khyKWhV4MX2RzjjVtrDMQi7JSJ
-4NLWZBgUQUGbnt4HUUhzXnyVRekyN6SqZ3fSVU2+Hydbd5uOvj3Cb6p8ZAZwSeuwdc0fssOTs0r6
-qb5sQqBfgxtaBnr1IP09tXL67EVDdOuFdnwfmH2xs/Mgu7dyP8suvaJXw7psHZ6RzCd73rUVckjQ
-Canu7mSBpuSSiPMU8iGxNS4FjGkyd6M91Hrt9UVvobIoVbmpbVAzO4uMj3wzT8zO60anorpUdjZP
-mCpx7q9tOGvTNncsq7grTF2g1ehZQFctqR1ySyLkfDW0Ossu5NgNBqI0Z/mHoRGRSjpDLFsRL8mz
-aYzMCbdVAb6UuLAxyT/nsnL8fe97dc7zJz95Z4E9Ypujckw/JeqbiJSLmiwKvldU9zT9a4gHmEGf
-QNB1citAfPE2CvghzJYm7ITWXbIsuwAsD2LCxHmg2m/m1+1Uhu4GDf1ibyayqFg1dA/vUL6xz6hN
-hTot8xSHBIvYst9hali3nqxzyaGaX7e1sSk9WHwXzQ3t9fy+BR6FTqFKavKWI8UypkcygIn6DCAb
-TVNoA0/q5/pzlZr2I/GrbDMwWbcfBoBpNSFwLgEODrw0aj5R5IAWE73zh96HbFcOkuBkw/YGBHLo
-O3lMCE9b7tPOG2HOBAKalbDU+Ch0m2c7TZQIOZKxnYDK0Bz7+dj1eIM7AMYGKZTRn1jI+HtKlhBJ
-SnxYMcq3nLZGHpH2vGXqctOdYGpH1ER7s9+zBqePM0wS/OSd591Lt/bSTa27fl4Xbh18y/g8aZIg
-Q/7kx22DySLSLcFSnRoeiOYxwJT53XgT8V5hfKoTJGOFH7oPA6rJG6KJsi9DP8gfaJzcaOMA0PvK
-24tQNnH98mpEScZa6fYqIyjHzpc3yABf4aMGd8jTU9XdABb6jiBdFPgc0/NvTV0M3K+uaX+iSDTV
-tvdtuZ1tDXBllATdrXOTH7Mas1z/IUWzeS7rvkTd3giS8ZywxeyVd8VmMEYtCD0xop/EryF1HGo+
-GhSSYWutU2VqzFioQeAzUOIFo0zOQxN1A7hHNhHTDQBpMr+LpNUbSCHDsLLLBItkoMmz2da5pz62
-s+9oWLaLnyJY4AKrvuaQfTfOSzqqRMzYroeeGiW6xqzRl24RlYptWKzYjJU1ajsAD5j2bAS6JCOs
-yOwoiSAwdZit25abvkJxxrvkaF3sbYIyQFrUMWGIAy38ek1nl9OK0SLx26LLZ+s5CxKRN9R28w9z
-M6MtN0xtz1sd4Oi+oF3UfGnxpQSbMkTosoFygmrdR3AMg8FszGCTazYMrBkaAkYTLxmJ+D+77ewT
-fkhdseePrQI0PIA5DDClIDbntbBm8Sca0F1uh4J4nTvbwerCHjwxgYZMMQHapSUI/I10jG7SmCC4
-boy55E/XpYPQhwkCoJpk6XtGNB/MW9Ww6cCFE1fOhTU1qcAr0bHLqVSCkNAL9RhcAGiAzUH0avgp
-Fr6hcE2K4rmadM7WUzqzcV2UsQd4yZ/Uh7CFLYKnhcy/NTwJZFWsFdG861q7BB5CNPnNpEpRY9KM
-gSzVXiPNtS/G3Fgpa+6QW7q+8q/8IPF/s7/ji9OhzX68M4P6o0ERp1s1eFQfBgdR2Qqjc/KER8JT
-i+Cz/ZMVGmqCkUgUQWnXQgZp2skHY5jF8590SoOrcsS9vgUE6XzIWj3fzn0+fJpqFzyklRjFhT8X
-EQqiDv/W2iuCFA1QaPu7AgqSfamtKLgeK5K1Vh4apj++2RJYC78zHtcu+Z74QRqDli+rJgcEdEUR
-adIBtUf2/cAsl8SL7JdLMJBmyssSdGsynOJ1R+B5s2Y5Q2hVyhyZqYF9jdRLv+XvVLk7kI0GOWk/
-6wHDU1Yq5LuUUXnFQn45ae0TadFVN2KXqF1ie6ol2o6keHMa1sNggEDj5Qen0tSkvwsmPf5sAyH5
-iuD5aFHM9miDm7FHdzlAJ1rJyOWFJoMHbXBqLPqvsu/HH2bbMHAUEIW5a9KE1zIzWHHYSIrh4zCT
-B/Pg+JFbXFRBjM0XGAgKWK9HhlqWGOk2kmCajhkv9kgrV+3wu1mEfUMe8AOpBHJS0VRZMWPZL6Lk
-og3vUwTZz+YI9wxLN5vcFTtXeIPYSyzN0j1yPU5E3AwOcpVTSFDD79Rc7iNAx7jbtpGJYm0gcEms
-U9Fw0GFfFT+iIV5ggE3NzykTPfw2I8GfRISwNV1CjjKjyzINGMGZO5xkrHbBTVMMhbzBQcPlsM8N
-blKmgY6VesBVluSuJ7dsrZfvEACI3jnF7O+mEPo19D7L+uM1RfvjdN3hoLIjUE0A+8erKXi3ycY9
-qMm74dB0tQO+sCOkEl9BSJrqhRmFNbc+JIcGqRIHMkHmDOCV5ky/6aU2/Krm8c/oSylXSOqrnn1Q
-2fEEnJkG6fMqqoTBbEi8Oochm32x/0nVOZpuOIac84g0z7kjmzL1pz04uXYLaDdcxZPbfDYc3qHT
-N+VFXHHqdy137VUnqjQVWLg6hr4UTireNlaIJbIIynGb2eafBIk+8NjISMwVJDcwqx3OuAzB7qop
-NOcx5XVfTv+igyL7PzcqcKm+kS6CQu3gBykUjmycUkrfBYdkROeg0ENWA9qAbeVVZ8p9B6Wol9Eo
-afJCUEe1+c/by68HUQ6ZRd7UlLr+D5FItlThUAyILEd3/BFmlX2mdHvsNZRoXSjueYsQ7aCUWoZh
-W2WtzwZTlfaDFyKjhormb+FNjpeTNoN9XcY9cWreGeHJ+4EpKDrYd3kDGf9Q9TZ5hpuDLeM4WZKB
-TDl1up3QFF2PyNN3zag60qWU+gCuOtqdfqQHJV1u8tuRDx6pX+lMmMCScMtNVbyp7FQHd0wE432g
-Coz+Qziz2CrLTernQjS2vtRxi9b49K9YbuzbN51fgcJxCf2QEjP120dNomrFhpsvMGcNXUIK7ftF
-fn95epT3LxSjAKPhZfIQhZkHj5ehEydQfE/OYHVXrsUqjt73ylfD8CQd+1xEw/tbS3OT1wi1r6Rn
-7hzUbZmA3UA5XNTMP/1m9EuCdab6vcwGMrCNnFadAYNj5XY9gIXe2p++2vcfK81H5jTHEbbHxHpw
-tb6galQYfD5Nx/G1G8Hz9g4TFa7Ji9MjHbuv7KUtxGwoxVB4vH16dZA1zZjQyg3RcF/maQSanQMr
-hQVpcH4GhCn/SaL/Of5n9Lt6+OfNeC3MPDqig4IW1vrirj+4tZY5p4oTLhzR2Bh+hpNhwHtL0Za7
-eC4fmnDyzygujr2gKElo6iziXTiyby9xQCCDXyBiKm56lvVgrltchbLV5e70vTw6EGq7gBam4Kkd
-dBeT3htUobmXM+4YNm8dG+ZxVGdGOXb/6NZaiAgRhVnmwXo7SL+bs5hRuj52PdjewXyBIb7Z4uCt
-HlrcjmeaJ8deRqpO5JSgcGCKPfjAvYoC6uQvr4ilg8ehnBVA3yiSxrbPi7w4M50ctGpeJjWi5BcL
-gJCCOfXt06qCPu8RUvHqQ+P4nmCIokSWcSyaycJtS/ZH7NH0p9NP7sgczmplORjjUC3SIH476Bz6
-oOOqqlz5CVB9HnEIMGcKV06R7ohm9bHOOAL445RnZy73yNPED0OvBikHc9sh+4rKaBX7ii+9DXv/
-q21lVsqWxdIXhAf1u8iJy+3pSz3yki4zGko12o480uUHvdqYtEPQuSKm+lk4BgqRAbBVbzjm7vQo
-R56itD2+NvrOPvLrg5c0mMJosW0sQo3MGtkuk7a7d+DT4gnvpvBnZmH2XsVWnwZnru/oyKxDZGFR
-H/oHufHq+kI/nSjxIhGpMm1+aSed4RPMwuR+Qhj0g5UFvyN+bR2emUiPfCUMZ7LjodXHFR8sxg0d
-Ctn1jFtk9XjVljjGvNEwHgNcaGcmtCOXiMjKQc7FZEa6zcHqoHLTngfimlcVLTICqg1nP7rAe1ZJ
-6tiPdZU0XzIrOKe9OXKBL51x1JTowG3z4ALduuyDQPONkN7hbswGc/lCcN9jsfzLxJdlDggcZgA0
-RogA4Vu/fUfTpiuafuYCQ5LeF2jYSGAYwe2n39H3X8KiNyEJ0Mdojixkuc2v3hRTU5hLFKo4Q8X9
-fTZk8P7jVJ/ZHh4Zhc2Rxf8weSIgOJg9e+gPlJMDWPQSZGNtETMBS8Q789YfGYWzD511VnC8Lu7B
-w6EyqEcOOaCSJjop9yBXzWpTNQYEh7++aczLFr18dK68CQcftqMF4cUuCpp5MDE0LWazKh6/nR7k
-/aToogr2CZBboID877dPBjcNwcO0uygOutkVcyf8YzoJXB1AHHubxVE9fT095JEbiNCLwhzyKyaN
-wyQlyLRokHL20o7DWbmJ/XpXT+O4OT3KkQuTPtMiImFJoNHhKAOa/IjjP/qSABhslcfyBilduyN/
-Jl4TPHNOmnh8vAX7+GIEOFzXtG32EjBiuXJzg16okTcEHJUhTsBtaqbVYz82zs/Tl3j0Ri6ibhYZ
-FA/vygGFmQTOokycYpDpGHCiTV5189+/70CRQTRBRmbWPTx0UHqlbD2yvvS5GT74I8HHpFJNZ7w8
-y3v29miDIMNlJcFHFHD8OJghFvR4hMumWDkI/XdxPrZrJ9UD9OUWss0AIjvLolFtMGoW+9O38ciT
-Y7eFlNzFuUGg5cG0oRMzUQq51qryRPRlkXt8mftAtLu8opy3cMCByJwe8v2ygjiHB8ZxAMMIHre3
-X1082HiyvbFYhU45793etr7lBgCSG8OmZABLXTsWFdmYDsvpgY+8MngbYFBwBuH7OzQX4QJi/1qR
-zKDjDpO0K6AS1vXw19tYLg8THt4swF8s9G8vr6pH2QeQyeEK+uWefiWaCKSAkk8hzwv3zAt67NVZ
-lmakXdxRBOZvR+tZ1AB7IgXJl+yQ1BNLVycxBPAGmQKIi6Zbl0bZngbK9PHvb6fkNqK1IrKNc8Lb
-oWWiFb1vt6DV4NLxKiTO48nyzqyex15QghvZMvOJcFI9uJ0042oMfzyqwlvwPqVhfHNGZKpTJtTF
-aHjn4gyXX334LS4HeUk9aTE2HawJ89wC8+pR5rhF7H6wJ4GqyffSpaIUJ2Z75pV8saC8G45Kw7IF
-4a+HcrlknLIwjZ0CRneoh1WDeKdftVUw5heuNeXlts/IhDe10/gUfqoaqCyCXQjMCN3O/JYjd3qR
-j3Ek4kazvB88z5msHY8sBmZUtOxr2oi1nnapDTVRRkVxZoU6FJGx2vLmcHrFUbhUBA5FZMWQAci0
-KYKnVhgBcCuKMKWTBHWnXsf4g4hUAqJAekPt4iw3qW19thRnOTDzRLGQDZe55U+LlJvxIh8Nsr0w
-68Omw8+PyCXkeHXmQzt0nb78YIEznL2+idTu0Ew0FkEceSb4hoAvutgmujNvhzF39kjFy4vQjxY5
-lmr3MVwBzBaEi9Bwm6T10eHn9me+iuO/Bhta4Dke68bhe5N6Xa5NGqCrcJ5Rf6FISV7cMsJdkzff
-3fP2GpfmoOkUARzf1DnROYaefISIqfl30tx/7syr3+K8nQhipNopGuCF0Qb2Cftkvh4IqDrzAI69
-nrwvmFCpVjHpHMQzVhPwQCkYJepUvBZN0P4GGpPd6taMrghxGc98DkdWC7ZpHp8kizJq+eWfv9q2
-C28miA6M0Eq6jto2xoyQdSqGM/fuyHTDKIvjlZMWj/LgoxvRWOZjzxEEGYn6GqbwdpWyo+84nM/t
-Mo5eEMc5HEi+advmwWPSKTQPmudUPGqZbcKGhlEDLefMXuboKOAVmc2oqrwX4EYyrG38aaibosTf
-leMo+g2HOHBLp5efY3eOFFhWbfoMS1nj7fMh1k/4eDwZCPThDm9BupGVlo81bLanfzOUS5F22bPj
-Rnk7VNGOLZocHlI9dvW9H3boSzIC9Bb99pA+/4vBkBFT3GP3Di/97WCiwMXjLXkaGODiXd93OIpQ
-wGxAOBS700Mde1bs/lhbcS2yeTh4+RYCktciEuMw4haPmZn4d56v/TNz1bEPF2KAXApPLDCHu9sy
-1x4tS967EgWtSZr0kCIZSoZPMbWvXd2H2eb0ZR17MygjYkETIFfx8by9g04HIRHyNRuTKkNSPBfm
-c5OiZ+DIEJ95WO+vjUIMZgG5WJADvuO3Qw3CCnIwmkSgVoB54lA9Vn5zhfzOuyA9TZ+5sCOj+Yj3
-MQsF7FDwehyM1juQwVPiZ9BVeleLYPQjSiY4f1Y/P4QqDs9sZd+/H0RsWIG7bE4469sH4yW4ygQJ
-hEhKSJ36Sugm8hzHHj6cflxHR8E+wmfMOc47nJcMQ3sjNBvsq3WUff8f9s5juW4lW9OvUtFzVMCb
-iO4ebGBbUqITRZEThCy8SZgEEm/Tz9Iv1h9Y994Wt1hicH4nFVVxiic3gDQr1/rX9wMo6T4CSHnL
-d/eVd7cGWFSQuHdwep99KQoBS9L6iLlqqeS1YcReCxUvFye7mtwHDD/LX+9+LKYg7Sp0zT4X0F5+
-LMstO9So3DZowuceUJk/stp7ZzMwRy9XDUhV64ZOwfU8TWJqYwxFSnJzbCycPIAOauSt7TrEGhU7
-G51v9sZq/vNrsa+jscebGXoCsouXjyVgRjlKUu9TpRgvvSWPP+jjZE3v3t09DCE8WsQ9dneu3i+H
-8SvNkH6Ap0xqDQ3g6+rn0gLfhfYTv/eBXORWHsuJ27e53r5fjpQg99VGXbQbQ6jssWq0Fpeo9K3M
-/5+BPsNw7SWeCNBE0anxchgPqIXwPfAjwC8tgarFz62LSU2F9UHiTbZyvwKt2OrCwcIzRxUXXMex
-jTKxNsSb1bg/PiI/Zt1CuPizm1D5e/ljSi5UGSCvdqO6UjaA+qz00sZ87b2xAEcLXaNMTDZIl07K
-l8PoilKmvWYLG2/yo8CaftaWnhye19l/M8p/Y5TTB78muP49o/z6a/d//8/viPL/+Iv/RArhpAJ8
-hGKoQ4oAV1+C5/9ElPv/XMNb2kIt3XXXC85/IYXMf66Z0bWAalN15/NZ/59QHvzTp0XfYCpTU+KP
-nPcAhc6mI71pz+kSIB7mWtfwzvZmib4oodkOp05Tk5Ea0B1TBxu2v72RtwvC/xrFAoROKgG0wLmE
-p4n7Fo1s1W9QDgE4HzVAtPVcPiWcPhG9hdobBeg/n4qDk7fn66vpDWXhl7MfpzbSbZhU022Ayydg
-yZnUnjTe2ChfGwUIEukKthc+01lsCuE1yzudenNup+YD2bzqOLTzEr333TlEbmz70F58iCRnK7mj
-FpQOHhTKGYdSD2rhjPS26BwHfk2g0KUb2EN8+vuY61f/LTXC9yLiXs9rSupM2/O4IKgtAbhMdeQC
-a/OEWyc9PH2Rc9z47huP98pQbE821/o1z0vn58tPZbaV3lQ4+22aEpdDGdTLDsc/HI3zqnxjTzyL
-Q9anoo2eFcX5tl4mzmYFCuna12rYrTLr8yOtSu7BdTAOQjoQXE20Mf1re/y3MohX5seL8VjDv19j
-FQTkxpWM19XG0h4qI261bS7xf3n316KnnLyIY65mB+dRflz5CzhmR5D2FKkMASjlKhqycXlC8y3e
-GOy1l/isv4LDo1O3OZv0gYD90OdKkGAxi2iUnfkxdUlaIZZQkTu/H6jER2MvpCeYdQZ+YX3Jv+UC
-gL3GNMBAATfK0d7QsWNus8GExc295v3r2UV2ROesS72e+vL5UJkGOslgqBSUkd3Fzg5rruSNCX+W
-g3+ehb+P8seO67Vdb/BADqjPNPWSvV8o8ZlYzL7EVFV87vzxy/snyO9Drt/0t3doaI5TaDPqRNXp
-ZTSYJazrfKGZEAXyp78Ptb6js52DoINMP5HN2hJ/tpxxE0y7BdviTQvV5bpoYF/jGGq9r+L6r3fI
-ZGcxA2kipnv5QLET23B0PQEuiWZNa27cXSYbd//3Z3ltqgPz5mBeT1vgMS9HoSM86/BnxvGqo0gf
-+mA/TqVbxb+qtk8/BexXwxuL67XNkFfHdkgDPIXRs8WFVJqbi0uMOlDv20O0e6S+/Y2+Xm/790d7
-7TNR3tVJsLnrrexsRnCbodfeYctIYzinU9X7kY2RwBsL6jxVyndCHbLW92FAcZCcVxBSzc/G0sHU
-Vli4Hfa1NYXOAsO9bdtkX0+rk7vr7GNas6mS0JS0EZK2ykXHzPm9z8sVF27dijVy1+nz8lMG8NCl
-lJwyRo39900Ncr8/ptZYvVXDMNZN/eUCWLW3xDpI0Rznj37/uU/81ABLhS1FWtAgbMqdEK31qZHd
-h8TVsFalyr0lAW+Q+qETlCoE0n0vHIwhOI6Qq94Ihf7cbrguGqzIlQykU8Z5+eSTIj7S5Cw2re5P
-1mZKgoomgWFKrAj1ubmiwqV7248DhNu/v/NXRzZXpBkBLu/97B6pZBssyWoTM6WGjMakxHFXxBp1
-uWSjgscGhH709xH/nNU8628jni1YZVozLXOcTbOF6S9QehzNaHx891xiFD4wL86linq+LfgeFlxE
-lLQyK7+j64LmGmkD3Pz7s/y5+TAKZD0dHiO0xPPEZ93AcOo9pLxFEri3DR0v2D6jsNLHMv82ZN2y
-+/t4r30tpux654BryWH7cp4g117oLeBYouBm0ygnfO3CjHXQ337VfwDVHAw48hIFvvGcb43rvxzX
-Hamui8YW+JvW3UUOZxdv0nH5QJtpdzEiI4KBnRtvbH+vvdw12oTtRwAPtuXloDPeGQIlCC83M5wv
-9BDN49YMJKzpOqBhLUV/+PD31/vnzk6hAeEhqXkia4hKL0ccaResnT4B/B1DgXSF6CKUh9jK1PP7
-w05CaSIY6g2o89C6vByqoM2ymFybDMM04lZTLONuHpy3gulX1hqyiTVDRJkGKcH5vpKYbj+TLKcz
-Ck5yaGVe4dJt0GFY8fc398q3ejHQ2daN83DT2JhlbjSvnehdox5d5N6NLgoHPfpbqsb15bzcvtd7
-NQI/ZgelrtVQ7PdQiXWclWm6AH+Wen9Kfa3aN3WlQ/Z3/G3ruRI7P03D01gBHH//UiBnbpt0vbor
-VfPsw3lA4pcC66PNog3YIQnHxL/FHEPAJuII6BDn5DaN35IxvDIzV1ASJwRhAPPGfPnE3EncwTIm
-4lHw6pvWCuiMM3K8wnWAHH//lK+s9eD5rgw6F+XEee7LBwvQ20lLQJU28sIdxXisINKcMqzdDkPs
-0W1biv7dwDrSfj5NCyaBCJ1M56WWLhXmMmDTvrFG10yQaGT+isHoT05jjR/ntR+r9oMeOoTM3vii
-fyySZ+YzInjDNjkyzpcijVN1KwQ7SkI32MbUa2tnGp58N2IIOSDJTSouVOX+2Fu6GAuPaWHOLtlg
-rBAOkJ5cccuD1Xr1G0XT156I3YXwEzAxA56tD1BlJCvbAYILjU6k8UdteQLTX77VnfHHrOTNrRVn
-PhmZAW6AL2dlhke6P+ljy6yE9dq3yr7Qy7E6inns3zj5XhsKXQFkb7KlHLRnQw0TtfymqhhKJFSq
-JATpdlGgRHR1+Pv8f+3lEQuxBAwcl43zM1ZUfopDZksi2tYz6trEuumUiu27R1mPGZYXLw/I6xqh
-/nbbwxM3DeCtsYWtpnW626dYR+Cj9P5RVn0j027VQARn2waryPCTMkZ5UOCAS+ZT+yZHnF/eWEGv
-fBwkB6tamEIO58z6z397GM+sMBNJihXyMsa7oQAbUVgyD0mHvCG5fuXjvBjpLCaoGyXiReUthH75
-mXKBta2x+Hljrv1xmFGFJTXJA4F1pPvn7K0ZmDZUDXW9jeE2+qXIZ3FXWVNzDBLHXjbNNM/7v3+m
-8y5FkoaMiGsmMi6UhggqX77ARZR5iUqk2dhJwAsURhpBVwQQHUggJKkTp4d6lskWU8RgT0+j+UtT
-2ql36naXWlNx+/ef89pL5kOu3XTkZhGPvvw1qe6khj8zawovffJGTcP22pVv5PleGwQsu7lqIMic
-nr9kABELUmIHvmzWYVqpJiQ7UU9b9zsFcs/vlmrc2uVEQxC9qS+fJrYL5PGKyVnnuPSgJXNXRN6O
-1oNDPWhvwfdfeyw07EwehMWU5872qXHuUW7Kpt14gxNfFFKJY8sOGr3/CwHIo37qcmbBVn75TF7p
-dZZK2A3xPukumzGttrODjdq7R1kpyqg1uXKQyDl7cwX+OUWQIUxRk5d+LKfAxvvaSd+bJkLmRvGE
-PNRaSyGJ+PJZ/EVqg7bO/SKzqg+Vwp24xV7kjf32zyzHOgytZ6sfAjXh55TAb3tU5S4NDlkeerox
-zi415Vs7Q2AGNQHScnX50Z+c25ZWO+a6F1+Q6z65Qdu+cbb8EVvxI5CCWpQI1uaN8wvGInS8cRJ4
-GIsrTdiTc9rX1/bs6PLSGSccmucpKLNjJymav3EUvLKpcRMA1oobHvUJ5+zAoW3fAXsTQMADBlyE
-qQ54ZGqzS8vGEGXsY/7z/bOH/hTyz8gxeOnnK8H05mrR2UXsNMXSqLfwa6+wY/77KH8ePeBKkZ7T
-6LMqt86vAuSbk7nz+KxummEv4XvNUdWLd7RjbNP/PtSfb5ChMB2mLsyIaDNfTlT2SlfvHN5gUziZ
-FqkG/hgwrNS4D3rL+ZHSVh2/8XRroPbiokMvHCuPUI4OGVbg2TtMC+HMicDdFdaVFsFqdD6LcVq+
-idErI8OozW+kQOaLFgPYQ9WZ/dPfn/jP6Urln9sLOgZa1Kg+vnximMYw9yY8NHQaFqLS9X7QW/zk
-1CSnBOSnzWi/FVH+uX2uI3JhpZJGhvX8zt9PWZ6ZhgB2g6vU3hLjeGCpvCWVfGXSgCoiliQAI3WD
-e/SLeIWWPq+osVOkESMWOwdgxhAGsZF+QqRkvcXCZiqefUUSa6vynBIxAQ+qjbPXaEiawLABRJRZ
-2aV2GNmuf2qpodXhqPL+btbjwNjMgamCrZp91V7C+GutPaG9yDZUyRoRLRqWrfz9ghIa9yrzkrqf
-JkOiV4f2L7zZ5TGwlrLYTzG1ztPk9062860eh/WVvgcDJC9i68SkVskpnqa+PNK8ajSRB7s5PSQY
-tDmHtZA07nsRjPV1apd9i2VfXGBxXOQYWGEs1vngEGPjseXwKcKupH8l7KeVCd94K+2mcOGw3Tq4
-l00bz8dD+KbXK6OM/CZJDFCQcAfjC3+Kocv4VTGrPdCWHFoEhsk/sCmFhACsj1hHNzJjOdnT8EwG
-kbBXBF8zDrkZOzLy+mI4TnPvZ5Gdm0ByEuzRwF/2CcwhdEpcDRQ57Wxr+E3XbWFo5t2hxBR2hvPr
-JKCq4aOhADLNJdhM40gMgPZFr08aZr42PwELhD1IrNnFUcrKq7CBYPcTCKH1OC8VHbFjSyQX2Wll
-6BtIB8O0dvhP1Z7SmMknXBryIACbYJvOkHpliJVuoO8kSUEEkTLIktPozZ5DDDuBGNKnJZ52fIEK
-JqKOjWuIB2zi78CzwFYrpsXF5h7mTrWh6IAkxWTtN9tRNpkPR6bqFPgiaEjAjJZnsNHyDDmyn4FH
-haN6eUw0uiBWOh5QpJIu8xVnGMseFVlX5zCu+r4M/b4hIBIrW2kOcG3b4uAJcslojAn8UpoMMuLy
-DJUJ9wF1CXKGt9PjdQm4qVaAIANcjh6ylexUTfYA9iQvF7XLnuFPWVnHXwfgbjbe5IAV8V5bUVEp
-nWunPI/rX55Q3b1amVIp1LwZ6t6KmrKM2qvDqgi8bTEKQ2yHlUtldRliT1Ky5ZPrKG7tTW0GH5fC
-aD4WpZ9ae9VZS4VEfqjKEDLTCr/i2OcStzKxlmc81hJ76SN0UqBZcoSfpfy8/AJSz7msV7pW9Qza
-Sp+hW+BZZ64AK4pLKGO6tsmuYiZmxMC6TIW/Y9EEnorKleZViho3SOzOPKS2K+/L8izQX0At8xvw
-HGrcg7YGDjY8g8LagDbqbbPIzt04zzAxCXW8hy0FY2xuk/SXs6zgMcrl82X8jCPr0jn3wg4KDiZt
-1lQVO2ell0EbBMuI9ThQs2pY6j3NZnV6J5+xZ17emxlUzhWHRp3W+pUFFekq+xmYpjViBGKGLwYW
-3PbY3+L8B16Ny4954zqJeMgsicZsfEaxLTDr2q1IVkSb84xr03MNdBsrpbya21bHn3plu9XPmLdM
-10C+aTn0t9mq9Z8FjG9gpUvXdV/APgXzVyJxp7pI43xIdnOF4PWE27hoLzWnCMpbs8hKcWnkjRNf
-C5s+kMtEH9ovi22o9HNSByL+LgckrnemAFe44wv53o3w2DoPdtwWKKv1enJPQ6Z1oIFYJ05U6jgo
-X9TSNPG9LGJnPHVN4EwR7AloTDH0WCLqsnAT48ihM3f7DuNSd1cIL433Qqvin7kVTzrw8CGNI93q
-+mrnwZ8EkoiDKlWiJJuDb6NRGxplfk7s5BAbGB3c0N9h2ictJ1rfBbGdu9t5xhT4GMQwBK9BnlXu
-l3UiWD8zW8466KGmw4IWeeKkzzcFAWL9UEH5zO9qtYjlxAlgk+O357gsPseJP+g1VqQ9bjg4uXC4
-IWx0OuyuD3MztfEM69PPu180tidgxOAvWxfZXCq+/KRn7JzCKfICW3Gf9ofGl5hP485rxbsJI7Ek
-1PGW6qJEWjxUY9ol2QM76WbzQx93bX0BamEM2CKb1r35F1mJp2UjJlgxg41Y2WmYQ6c1sW0+NA92
-EczmTlmFWj4XY5IA12zx09zq5PVINKZJMX5wDW8072ZuH6a9oU/T9C+7ghafHV3I/hR2dlB1V4vf
-U/SVRaXN29bPYtzIeXP4PXNl+pRY3nyle1N7Z8UGzV+tRbvApql69zuUZCKXKXZIocIPwRoMD6j4
-cbGWfsKqvmSpYlSuNgTyLWRbqZv1JVpYaayWVD4+jo6hXeP54mhR4Y8046jM1FZCWjo9pJoxBNth
-vfpti7hMPpaayD+mpBd1XK2a/EvllXQxIlfvfs789RIaVUOajv7ylPdjx0nBXUQgvLIRgX8l0VJ2
-H5begykKnHfJQstrqf9yVo8OvptzcKXANwfHWjP826Y0EyzBUjmqzYgh+pUj6Z2AfJGySXttIf1T
-7OOzFqo+r3/YmL3jO13X4keOOfxVApmvj2QZj6DD5OLAupya6nNamy5c4Vg0X4DXj2LXlXlz12hO
-Zm1QhQL3KYOkvDY8NXucTE1ZoUFaerqQMiNeQi83K6yfhrH4iegkVWFe+nIipMNkNcx6qzSfnLLt
-zY2uEvExiGvMHkwtG2fcjjwvD3UCwnsuuzRDNqoy7wC5TcWuSKsMe+sgKcqtPZr9N9/CGnMjvWUG
-+diI5GnGKhnNORPrwl1U+2hz8YE7UqkkCIFHdI+Lb2ifcZQGd+IuSLY3MZ73P6QxWLeWKeYf2Jmm
-3+O4Ce7wfLAeLZFkdjilifbLGqbxmqRG+W2Q8B430Geg2rULDBVlyeB7oJVZsueTZY923y7fOsxc
-T3aZG+imbL//ESxz853CD6YOtjJp1CPssVawd9aDf9R8cQHgN5j2unK8zyDYU2NbjsCiw7lvyMQU
-WQO7W1pTySQZ6sXc4s4wahszhiO7B/mVf8qmxrE3c9I43/rBGZNdnVtA7BoSf3aowe0BuDoKHWMH
-Il8voraVfXQAUU4HXD3MFHd02oiwsE0K97JaFKVZsu/BxBHfA9YeEwcMHMXAUj5BlCtFuLK38czO
-lDsZkG1Nj48IPQYD3LzP26s4j1NzY6uikeEQx6YJ+BwZV2SDahwx/FHViFevR/Tj0lT+NYCocJFY
-zUJbnddDT1pMfXWVLxwr3ZjYrD8Jx5snaJfwNjc1paCd4wBFwEqnKkxcU/1ql9sl/9USGezBOnPl
-k5UbCU7MBBsHO4knkwUSTxflOE8PoHWDJgyMsr2ChetDHYFVDJ2mH91hZzW9zh0vWIqABsS+UWEq
-McwC9mKkeL9Sc3K2y1i1t04+6pscpiVE6iLJjXBytXzYVLOHhTO0P/d61HgxR8cDignm1AqS0DZy
-73FO0jWnqGtO+1Esunlokrxyjo1VzjF/rtkyKr3RWDYWNy65YW/hXOiXzC53HHvaleli6h156dSf
-jIxL/D6fXCICH1H9xjKBE24gQiePaSI8I7IKLyi2LFI8tseAczdyvYwgKK5r7yIocw9aPIlFGiz1
-dC7DHEHj18GW+bSTQWfCCenThepPUBc/lSMkFvdjntxYs+59tTUDCzHEpfEUuRTFvywYrbahXjv6
-sMNBPbO4BRTDR4sWri+TmQYEHLiC31UQSGqIj5g0wvgdpRNCBMcTO3A6gfvT3Dmf0zn16O22cuey
-8+vipo4RD4apJZPbxUuIflvc9C5mGfODZJnk2LcPQ/oAqCYwI7exkxlnbDtAPZvO2bUSpvk0Z/CA
-cHga5N2gWwnbtx/kWVjHUi/hYxv2fWfq6on+mBiqoSeBdZM7B4KKOVxpbDDbYE+drYlEiikD/XL2
-Xcykv+eGBYdfEpymmxpUDzc2m17ZcBljuIz+WCY/6jpeyZ+pb7a7hg8U7Gz8iUBxSjC9EW+yuuVy
-LL4XOtckjKBpmdyp1u37Q+CVQDTxdAIO2Y65RcTSdaXaKVVTonB7Zd6CD024PgDI9nce5rdHHmv4
-hQkgvaELOArV5IO3WQav+anX+vLN7z1gDkj27DmyUs/tozZvsYUnAc1qNFE2cIzPdrIFmx7cGMq2
-PpnDwuZApJHZEbJJ51OnfGKQAVOpCKpmfKOrPmMXjpvqEAxdVX4wYOx34dhK7WNbcIvdgAzOjqoM
-/ORQKJd7Z65a2L9zGutuaPmFcYot1IqbarHXqeEP7vWUzt693woL+zico39KPZ/uxmYIHsDPpiml
-ml5e5GkJA1TVtndnZu38yy1yOH7FELs3ktj9g5rmgESUyXIdMfJOQ5270D04PtRpBcWAmzlPaxFm
-s9b8XNJ+uZW4L/SbBCTqA1rbwQoDs5B3tCNOTyZmUzD0iVqO/hJ3/okTUPkbDiIT8CyXxmaPtzbH
-1gLG1wyXoehh/dUxZq909zef8qXIxSHBmIZ10CJB3ZhlkMPJzjLpR60xxl9iNYvbxAY6jhZb1ipS
-CHPp+l0wbA19t6vh6QCWKEOLXD5W0yyVhPmZz7uyS4MnM6gzbVOlyhoOc5oFl8jA2vRbCfvR3S12
-uyYJMCu4RaSMyqjoM2iYZOtAzHaD3k1bX5B/3iKvCZyRYj6Vj0CFPlV+uYxAwWWtVwh3CsLxo4gx
-CCUczqcP2jKO3WEuZNztLc11xB3xdKBT5Bxyd4dK1Da3ZawjZV9KmCgVJiTqYZzGguxAgIYmVHpK
-6nPurSEHxmjo8sh1vC3pF3bkp66ZzGzLZLPisIxp3AuBw3HZwgILnxa9MFxtszQJ4Eb805M8Iu3v
-JJd12zRiB3y9di8q3+YoRRXrjJdm61VmCFIO3qhNm1qydxpNPIwaNGxiBT/g+oKNwSNBdvEJTKNt
-bjKbRYyFWkdoSKtG9dmdpZdGIu9VuUnYvzm344IIWdGND90c0ePTZJldEXopui9WQe1/dotkKaMV
-ozuGRpnO9kWwjO0CdNuG4iV8VZq7MfekCJ2gin/geT3kYWlPnhNSwoiPi5dhu4PzWt5dGNNaQwQI
-ljsht2/LCen2TL/05qiRt8goFHC2cJT7UVKXuVmCzu6NxfLBorXAxrEY0ZplKvr7gvtFfXxOH/53
-58nvnSfohEib/vvOkw9fh+Yf+67p++YfP5p/3I3lizaUf/35f7ShOPo/MaNF3EU/KUUXyFK/t6Gs
-tSvSsNA50Gmug/6Xs7X3T5KzHGFoCOmo8NZaWt+MQ/q//odm2nS2gIoi76/TarcWmv/3/3whju/P
-/vcLZuBzXfq3jDT4PtKltKFg/gS5DHzHy9RpbGEhEVtIBbkIOBMBgG7d9zgEjzsjn/UOwE03/pST
-UF+IiPRQ92tzwA9FGMfWnOaw8WrjzrbUHJlJpw71lF9oym4fDHw9viedX1wX5Th8HEYT91+UbEdQ
-9tNaGk/lTWpzX9iwRwM9oiwVKU+H6JzF0nhStitvg1ZOd3Ne1Q9ksNIdOw5eUUVBTybUhE2d0tbI
-ZdzW9xa9Xfe2WXDhw2Sm301jz56oe0lhhNzmvQezHro8rL1luBzHrHgkSU+GVlb5cshS0fygmMXv
-Fq33mGmDF1GduG2CgEPfXur5k4/e9L6XWfDRXub61Lh4plCPceCdTYZ2YbOxEi0D/G+iuE/ccMKg
-41uRjP6eNKF24RbKvhIVjRwEatYjEtZ8PCaLAQrCHoTmfunFOIMcC6xQB+wbTvW8ZkIF1xSb+tWV
-LYv5U9VL837UXKKXZmAr0OMZCvKUT7wxf1qSH/DLE4v9bG4ucQKwuICXI/DlHCksh6G1cqUhFW2T
-ppo/6dqU/GiK9QGZKmO1B4go7qbBx2TBnudvU0YuYYebBenqNLCXi2ny4Tsng2MkJGoVzTcwIwAl
-FzTyR03K+yAvXGOJZBZU1ocg3/qZkfyILTyAQoWFttr2bTJkIRYU7RDqmj2dptYA4yxT6zHJVHzl
-T4lqwhVmc01TJ81zksMUhm/Z4x464hTCh0wQ87DjESC1D4ry+yaHCkvtDd/z64GOKrktMf88Kdtp
-k5AWsD4qaqO5icfE/T7hGAII2BZwu2cjHPrqe6aVV2CUlIp8vzEOYBbImiW2Xh1R9gZXfmmln0fT
-G/bN7Cf3XC2xXB+SYsGEpDO80NHidgTOMMZHsNbWx85wmks3a72bNO/SY23OPzU75kJZTvnD7JOC
-BYVFBG1VwWMrbPc+ngx7ArtiifueUAu/Xq18yCbbSo8+CfkfTSwmMku2UV+6ptCeglkF2kEvXdhg
-/VDXSInrpdo2ie1/aGomKpdkZeA8Yedfp3Qs/avGmfiacpGct9Y4frGwdLhKsxLdbMIVdglHel/T
-bWEQ2VIkc0HFCzu+IkVDor4EMl5uYWn7yUl38HzeDL2d5zuv8HPv1NvS3/vu6jykj0Y/X+j0FEGL
-1gffO06us2zp0+12rq+RlZiDeW8E6TB/iN2hnu+mfED1xpRIw4Dk/DV0z4GfmDu4Hc1VPZ6WrDG3
-ee3kXI3tPNkupZmzlDnivnbLXMLsJhomehaGPd+0lWX/AFMNWXwolyBCFG3cUxHy9zln7X5ZnA0x
-qx8iuev5vziZs6X+kZJ8KA1vM0HArfj3Jb75Scfx4gY2U7t13PiXM3lu+tDgYp5SkZPIxZl9cXIN
-9K4ytkLa1lMz1OtimGMw5PAR/D2nBusSrwUnuZ3q1Z3J97J+2k5mYz02k89OQaUqm6PEZJmSkcsz
-N4pnv8DpBPVYQXauSH74JAj9g0Pzr79bHJmbUVEUWoFxGEf8ESgdMjNX1dVw5WbNjT4sfghq/YtW
-BqfGEuq2WDwyqG3/VCex+ErzUHBKGuwdQmt2D2tvgL6RjoiLWzMQ3l2X5tghFCvqxfdr+7Yzg53n
-KvKRbfZLBFyedU0V3+lbI8qjM2QfcBOsv4xKn0jeVTqM/IKM/0JNqve3E9Vb47LQUoz3ejaLbF8N
-fRFz7fWDZdqk47i4Ya03JddU8E3UG9wsSKNAddS24tkhcBaJ9yFz28GMhnaZvS33dI/ClCII9jPT
-3Q+zLuvv/HMdr43Ctj/rFk4lCTY4h6krdwZlIOQcrc+FJiPP4YqiScI0dQqc1UoluDGzSV06CTOG
-BIHUD63yhEYpx2jbHdHpLhAaZODM0XRyurIZn6ZFtMGh0AHLbQohvPkj7uQ73RoPqVzszVAHcygn
-46dK/NB1510Nsnbe947dOvuRuMzbL/nXrlk+g5qfc36XZqljTPL1ikugVp+S2Rd7UbTmvTEZRRWS
-DtfcvZgHrtVy6vvqaLZaHBrDWh0sGvdycoes2Vioie6VavWWJtKp2eFexoqy+iuSUkURAkj3Q1/k
-3XgRayJJkLFjrrMQGEIFiCnGYmkGnfaqzDPO5BR9nHnFvbnQ96u93qms7NnYjVNl4WvsDgHaUdu8
-TmxVXowOt/GtyLrK2qrSc4vQaAdATjbkpLBLU3XbCG352WFos8dPIb3XMrdZTnIce3fvE8Zeuvok
-fgqdEakJT+63vhhT6xineHZ9gL9thCU6yvRa+JQFPzZeMy9hlnatHtZNlTW7rOrkrRjK2TomboeE
-NctFnbGte63C00QZ3zSqMmJflNlqPFUsOla6iWT/ncpU3y1Fm9z2Tu4vNxPVFm6VjmzH0E9FfEiq
-PPhGo2zM4u3aLtejrhVJd0gyvHcv29ZpSetpaksB0wq9YJhBNorVNaDEHvxQEIf32hZWhdV/R/xY
-yws/H9g829pL7KinLSSj4Ehhx+wQPto4p/VRM3t23H/mcPEA6DeuMX+kYpph4Y6svY0SrSI0aydv
-Nklm4KfGK+7j4X60gp6MSC73XGtEFVmd41LNTPMhjSbqatN1UnVZsRlc1V7IbpAVx6rClgjcVBuH
-i2bYEjvwKtg1DfbSkaJoyZk5t662y7OhCy7bpca8dazSoItwnJl31Inww8L+Sm3gFBQcTDE5U5Cw
-Q3vZ5G52E0gebDtTrl4IVSzUzGjGk0chc0QAglQKSjj+rR1Gh4HCslUkJWYVgxAf49Eshn2ger25
-nDHtye+tWGjiFAxTdtAKDjmqiEa8SbCooZ/OxybtGJQxYVNDoeCT7krnuxiMeQwLm5BiW2OlyC1U
-ZIG9RRTXUjg2DGzdZXwkg6YeKsN2DIJSRVyCYkJizQsV2NtPVuVjHKA3LLA0yEFyeiOdYdjM1O2V
-Xqvyk0TRnHO5RFB1oNUcemHiY85GXZZKZp5PEeZMxloLj91TIeFmAapwCncra/JfEQlm8v9dW7b6
-1krnKcMHR20bIftqA4KadDGFcTBvtP2eqHPqh25mt0O6qJJLNij1lCfEw/su1dWpRxjsRsxoSpG+
-+O47+bHFr3HOOVQaVzHxnV1suXt9qO5M9hlNQtjJnZtkMD+j4vnRTemh07Wo8sxLXfmnPGuzTdd7
-eD3V5d7L5RMi3aOopmicy69u0z/4tfug7P7OcqwYEF5DE4KzRFpJno3mYRWijw01Ml2mxMxDcluW
-6taR2SUc350/fh+67ClV3vfeUKeOAu3R6Xw2YI3eocuyNTpxVA2icSmXCPG2SK+HqQt0ilL0OH5y
-AF81pIZDvelvZ2pKTjTI8ktRZcyKZNQiZ2J2FnjbbBYvkG60GAgsyd8MqePekMzKcHMZ3SQkZ47p
-S9vgcPZJN5R7LegusKOad5we6abgb6ppQL6lcQHI70GBf6vyRN3lXjr8kiMexyenzc0knHoNfC5i
-9//H3nlst41ma/te/jm8kMPgnyAxiaSoLE2wZNlCzhlXfx6oXKdtVR979byrq9qURRLAl/feb3jU
-Z2t8q9RWq51oWpKRWh9zzx557mg7DmlGcU4pU3FrSTgkOuPSxIXbdcr0qJKNNrxoKNXUzaRpuep4
-5thPzXSS97M1C8m2Rux4pOaLhBXlBXyzN4ZQeLqU7NtFq+FFqAuCFoiG9B3GQ5yh/Zn9o3MxmQ5f
-5TIKTHpJIc6q6zAPj2BVRMxp9DmaUcSyegP/bVH8lqQKQpRNIEnRfZdk6a4vqka4knIJZbd6Qmt6
-8998QhO/db8kBDSa+3f5hOvvTfGaf+3fyn/zsR95BNn6ApBYBWxkrJo+H14YP+QsVOkLMmprFoFj
-FZ4KOgH8jzwCyQfMqeHrEtgj+szLf6URrC84PhD0YyxDeoKwX/9P0ggfgPB/ZRFAz4ESN8hLKsgW
-AJb9nEVYiP0LQMaXg/9yDj17t7F3/tnf2b5/9G/4Z2dveGV7nhfazn67f9+yEdvv7na7fR/ty+0f
-UOWfxBb/eT/0wM8AdhXeKSqT0sV9cu/8je053tb9qZOu/3q2nzMnH/jK3z3yJ8xZWrJmsUlf3OP2
-aD/5rj/Y9s5+3vj2je3bNtd0t47rHhz34F8c2zu4f7iDTzC0fz7kJ1ZInjStinHF5eifX3b+nU/7
-Oq/Odu/c/uFKpD9+Qbz941Kf1YlaUqvBwMMe6eEDT7f26/o//jy/+Metez7au+PL0X85nmvb9Y/H
-lxfuyL7a7Oyb3c1mt9lsvM3myj55W2fvHLaMhOerK2fr2PaV7Zy23LW7pcG2rnM5OLZjb739xTkc
-XIfhsv191/1pdJifGKtd22Ryx+jw3cvT13Non23v+eSI9p+a7YN3/5sx8lm0Mh0MQIn00ME9uq57
-PDMljsyKjwFp+7V9ps++MitsGuy4/oY3MmH8G5u/2vHLdRwxnphO9snmV7xaB/Nutznx5/aWtnT3
-zuVIuzHfjv7a+67rnBzf33m8kZ/3e8dZx6B/ZIyc/bVBI3tLj/EZ+st36ZEDb6T1n47ntRPOLp/5
-fZP/cQB9QiubYVAKBi3BJXlG7s7eHN3dR1PYPAJ3xb/OHzoAjac/jFv113VgMXANggh98Z9ozuPt
-1lkbgRfu2XUOu92RQffCwN3xn8sU3m08r7Z56W9p0qO79V9s333yN77/4u7OZ7qDNe18E9r2Iyuc
-TyvST96eCfFk3zh7+2M07Ta78+7m+y60v9+sX/r17vwS23eL/TW0dwy33c3N+YYfv39npfRtJsHp
-lknLn5ftrXe7fadjt9tb++5mt5tsO7Q3zJrHq9Pp8bTfeve7/fbb7cXxNs7FcY+O59269uvV2oOM
-s1tmi+3t91csAvstze2y7nwsRDz5OwvS0WV2bbcOj7djxBycrXdiJHy88eGWv17n5617uDw9ue6t
-8+0P42ClmvxuRnzCXLc1jnrG2iEsIU80BAPBuXIYqM72wL06zp92gg/K9u+u+CnBjUcp1bv1iucd
-w9953+5imw5dBzoz7sxDMq/4kenC/9l7en790T37d+7d7uboPpV0+sZ+Onxd5w83fN7Ym7vrYV3h
-maY3DBrn1mOWeZXtnV4Te88427uubLsXVsIXy773Tuu8du2t67EV2Pt1NfjDDJPWRet3z/lpywsk
-0pdg1y9H9+Vut0792993nfphBfW7K3za8dj3JUHiCgcGzpkFZ90HDmvb8ZTrAsTQYiAxvpg5DLQD
-TcXwZtniR9qD320Zk0fX2/OSd/s7mn/Lb9k/eM1McJhTLvs1X8nXr2/xSz6/u6PzWCyYex8L4nrF
-ne+88BZuwXbohfXt/ODZ63Tacl3eyzdeb858PVOAr2Iq73beutoej08u+9Xuzqah+Ayb0ToCWTm5
-OT7P961f5lzxgiXiyB0xFTnV0K8P3n59q7ff0f+nj1WLp95uSh6errV9b8t4Xtf5dQ3n3jZ88sZ5
-5VuZdM7+tE7ttZloqPXTDIycFYfucvjr33fZ2uX/6jCY1JSeZMiVFn5x8FQ/iyXGKpAty5qxAscS
-9hQuQ+CQzRkOQqQNnpkHFOORKP3DRdcl9R8XXVWR4Nmt7OZPK31ilh1Is4kaPhY1l7RaMkxPZ/MP
-V/mE+P/r0TjSQrqHEMbBk7v4if2DZVkIYphHi8xRGjEAFFbrjBnjVlEryj9c7N88koSmJSUNHe0C
-uLG/XoxccGBA9YlswsnRCYo82JRAXf3f99a/eaRfrvKJVdCUpSzQhziiRgFPNFbmDZxFxE6nLvjP
-iGBr6xErIGG/speIAT5dqu+lSG8CSimI/GibEZMvu+4X408P9EFb+3UsQHJB7xxaG7VP8im/NtyC
-9ScCMSAc5VrPQ1eOsHmzK3kRHjMzLB6EVT/LicBECD4C2MOxkwcZW786EFG+77L5wcS4CRfaVEii
-3az02utMrQyeVYA5MZD8HihoWOhDh0gApud2iH3ttJmWaUxAMUtU6EiyJPmFmrxcOEYxo5kAPQ5r
-GlMA6+hm1soKFXEanpwWuOxi95IMOsIEnfa+lGNfeHnV5NtZmsTRa/QUZZA+QCN2Y2Vy+zCiUxrt
-ZZkSBfUUxt6E1u+30iysBmxhEM029ZlOwWo674EhYYEq2TIs79nuxLY4iyhgPCitkpfHSFjIzi/R
-Sl6LSB1jgK1F8+iT/BxJL1PbJDevhyQMYXmSkVOtAi0LoQGMZTfxQpUtVub8Hi9MLM9zNTILB38L
-EnEo28dwN4QmazDqrq2nIcrq57IxwP/Dgy0XO4gVkA0ISVSWJ1LtO06pMMpO0lU1JtmRIiEPmppR
-5CpZan1bxJ5MalmVWuEUkEpzG3BS22yxfwKyHgRLnh5rsPr43QrzoPlG3SQXJDclanmlqL/reiW9
-50mtUX41jNk6rlRn1Zt7GQaWYFXWqUMLTNlmZQy2p4JiCDUCIe9zVoWjSbo0V18LOaxuW0POng1c
-YUnVaoigGeSRerduqFDZgy4mx1lSM91TcRpp74e8jEJfLyhuOp05paOTTFr9XnTDAFKzs8h+S7Ja
-xEgkLcttkw6T7nTCegck2yOsYCdVoHKxKJTJ5Tp6SanjnCQy0aO7lKlauGIo0SxIpA2Ch8hzJ/mK
-NWbPfT/IYGQjqz0O4CepFlIHzmxAZZZLsY8CBcILoWdl6D9s82pIHwFTa7Gb012L05QAwR0sESF1
-rAIAtU1XWbd5W1aNP5sLFuUNlHOyUAz473CvzCNZKrCvc2FOs52mQNydbOy6dNtG6fRcd0Mn4Y9u
-5VezUMGqQYrKeFdJhYMurSllnVQNi9cddfQ+cwIpGy4z68hbJpFAQ8Y6Hjt83Lr8Bmxjk95NA2ME
-gtMk3E9o8qAVXg612yymcMEYsCg8QVH7Pa4FeeGbglmtGMCum5yaWTSvsOjkoYxry3RhNcnMRRG7
-EGza9eCoALDE4CMP58Sp8FJFe1fAc8OOVLU0vaZBE2wrdUl7QUfM7FEi64uLSFUBjJtUDGQ0W6Nt
-rnql01Z/47wUqbBJSuQ3nTKPNqlqSwSRb7QA6WWrug3M3HpMxFh+kzA2XdxWBOZEdbEvTs04Auhq
-6rHIHFGeVr2MoNC9OrX6xsecM7vG8plqmqgUab3FkUR+qcvATN25zqfoNBVLcdWA/WDeD714UywC
-Sy1Q1ITMv55r9x1CBBZbVtbjKjoZxX0rgtR301rF5rlOBIhHsVk0mVv2K7B/ZE3B1kBJsxMqs83o
-VlPU1247qXGHV3cmA+yaSHhjD9+Ez0AO62e8WvPFXd1MIy8M51EDI15C9oIwG33FLGma7Ept+pwy
-fhzcAfhW7TbP6YmlWowViVRR32rNUY/cUMHCwl4SQ5rJ3pdh6+tVEe4jOv5droKOItOsQ3ATl+kO
-9oj+bWr74AGBE6vbhTMKimBe4/DOGhRywKWI5p4xwhfH4Fn4Vuvh8EoONpvZ0UXlVkUpqLaLxorf
-aghgkL2VULjHAil+jVIQgp4GjeCYpQ3AxlYKchDKQ4Xah0ZB9N6YzAhbAVNtKZTrYQxpJOmfA9Yp
-gMLhCAq+Uca7Lu/n3J2WrrqJjELBqBr/TFtXMyBtNRjn0zCgs+GM7CAa0PPGpJqdRXiw1IAJ/Sho
-BrhoVWFhaCWZeuQMtRXct7MQzJ6UpOZ3NdPy2yrWpczOAKwkDHn4AJu4rsZtI1Br2TJ/2LTiXg1O
-sVXJKD4XLUUoJZhADasWhfOeWb5Lw1S7F0QQjX4HDRL0baUW+5XRirMPhNPHIqSNaPe6P4VJqdc7
-OIPznYkr99qapTpDNNQT3DmsKtFpKNUUPeqJqnYEPXiYU6V+aqNhdRzTpxK/8KqNMTxPUtTjYA2i
-+xCadXBQcFOqqSDkVceOJk4qYBtB3WlKWCuuAvnOdBHsltTNYuF+7uSijneuYGqh4esUJNBalA2y
-fjiIBKcVOHKoWDNFO677JnBxUOhfAeCrT600otCUVKDhbE3W09exyanEKZEUPbYit+bEOIBvlqHU
-YntY6vabEC8ZCloNMBB3SIqehSatutEZKshTjgUqP7XFvuf5xjZk/tSoBORuLRjhGwuPJu/EVJy9
-vK8AV4tFBBcrSBDWCAdgeLY4Vavp99BmN5SLcChPdYabE8+ZGrhzzkrjiAD4JrdUC7zERwT9KOLL
-SZD6gRH3N0JksUejXpQDIY4X3dpIUh1PHMkrLfOgxzShj79yRg04FlgWBJ1HcJdWju6MdgaoUZWt
-9Y7L/NRf8VXRHR4xk+wYnVD2xwTY1LnBIxi3IKvRcByY5bLbhEieZO6Sa83kUbor6XNs7wWaZeDM
-R1ZYlEGRN7Cq5yEvdCZ8q8vbVpPb9iYsGvMsdThx2UkWZleTJZWxLaNOfjtPwDZ8CEDSfcBAknzc
-5KvJnoJHC1k5+COFwkM2cpG+GVVuKO5ULtH9HMb5PQyU9AwuTLnEylJtGLDDxopgdeJhFrE/pIvy
-vZLXLu8Qw7iYAid+O5MUYXJCOYhvi3ZIeweqpS5y/maoVEFsZu4sRcELOIdh8fVGSPZgdofOAQXZ
-ZV6uUla28wppBycB7avZOa6K4CQTKtVQvkSzcot45qQ0R3lI+TY1mqfGSNkzYYYyzAwmn+RA2tVO
-vZbFk7e0jDyb04fyHMxVfdJ7LThPc8moa/O170XZxJ1lHr+XlTnezaBxTacShlDEvAmosBMy6q8S
-s8le1F5Mv/UpUHVXwFL7WtSbWQeoAAPLGUULVPG49PHwhxzBP+IYWs1CNh/koAkL/DNNOq8p/+eR
-8WTFqPvUCoehSQcm8B+GMetFVqkMLBTAFYqf8y1KrAJbYfdhC7Q8pVa0vQLfAXpEE7NZf1zsv4jU
-nxCpaJKiUECA+39jUp3vn+XQ//dDPypIivFF1qCtU/RBsgLhlH8hUakgqavmiEgkhjkw2tP/W0ES
-5C+r/C/JAyj8yPivAd7fQFTjCyhUvg35MrqbMFz+TypIqON8zht86PMgigY0hzD7s40c69tAcThB
-+KEbhNE1+iwn2FrX9/ljqU/WVd+UVhRhGMvT15KT51cCz/R1MBo0RpuPfUMrC+1JWTeTOUEEg+N5
-Wy+OORjzt1Acekrzkw4arobcdEkIuogZMSWGpWeV6nuH3+hljqw0O0xBkIhIA83wYdPaDO4DGEwj
-QAdhgAyhmc11Cvy+t6NFVsCcd4NUsieMIpABoGsnKYizZ4LUY6PrZroV0VMObQRBIHmOehGYdrPM
-w/2gG4LmSVCprqkYDyDpBjj9S4LLj5tAssYHdEZ0ygUlXu4bqc1mp6zG+IXwNq9dRYeMIYg6qE4Z
-njtgdito4EsOYnfoKNcr9qJ1YUzoIMNx16dWHkA7BN2NGBnCq4xCWmgPUjI2Lk1XvfZt215XUwX3
-zAAclm2mZAlTd8TK6KjAR4ep0Fo4b+v10B8kJcg0X0zz7m6ErhohU4CGs409sLobYuCjXiuJyWK3
-hJX6PtdXXjeAluQdnp40OpWmia2rg8rZo3FgWpuwDZK7LuiMEzg7pESr2Mxf82DKWJ1Fqa5dGAnj
-M/bpzWijahCk21jPkyfgn5kJEMWoAx8tJyNwIimI3uqBiN6h8J4Wl8IQob94Sm9QNVdbtdZ9rR0j
-5TWBXPLUBzKxOiBC0GjgbVYsiqVkGUBTpVMUBy/5lCBukU9jqBlImMtqDPpAQt3mNTWWxThUih5o
-V4FGKgINf33MJyePlybd1pxKkfcTy7nd5bElLBBQ2eedQh2rxEfBt2t9qZLKclPCu9Q2K0zwMe3Y
-DDyEGUU8jmMiQzirhgoqwIJUqiCirjmymbMfhxPBoqvUelE52J1l8zVoCWO01RixKwfv3Q7uCpYA
-z0pazYUbSlY12+1YCMppMIdmdIQCcTy7JdRnBlR1lXKSzAuwxNT5Ro/Th7zlCDWpeynJuuxaD/Js
-vGNylQ/asIa6lSBm5WkIu0xxFtIB7JZR79TGKF6Eli3NteRAQmM4gEcRDVo/b6RBaqSHIoZJ6VdR
-SuquEgeod6DTxkuNZspLbgxi7JLZSywnDcwpe2oWy0w3KZH9jHgtDmi2loiYhhgcNl8I9WvQcElY
-JZtSxHALIY0sOhrlUFRPQSL1xxD1WwJoNZ8JZE2FEB60ae/kQp8f4Lj3IENGOOK0bAtSqBXm5DY1
-yuau5oh0iMtJfg5lZQ2ChqEVHaJZI9pKVto+hMiJoWzY1tKzFJeC7IPXm69YuCIU2olJRs+Kg+yN
-8ZfNbpwNyksC4O+pkbmeB8OkuBdKDS6jJmANBeJ8BitYxQuoExJG96WcpokHIDw7KohOaF4s6sJV
-M49B64XglB6GXIBwQ6RXLV4olxzjEbUttwlRWrrrInKYF2tEGIHlU2t6T2giaE9pvfokq+AdIZpi
-nPMYTqGqgjsKO47HCGwzeggY3+Oq4tyv15qeuPkcZBLjPe0Tn9z/whonDPXjCFoRiKVlYgjGOFWu
-xhLWGGibEekNYZy1FiqelKaQfGThjMxOqTtRWyqEJLpg2aIojbs5zsiaqWKlvAKuGwZXy8thOOTI
-tWYOWR7xoU0STkNArUTRzce+Old5RcQDokYFKFqE6QVUhDg4zLZmOZK0GJ+HOYUYE2jPjaSEEkke
-KKRwfqKu3VRFMbppHkiMJLMuRz9t0DawlazCui1oFj1zemVESAC9mjHdChGoM1tRu2ncCgiXntV+
-laycmAiXOKyT3qtVuT2j1tG8RmVKFI3PPXIcy2AKt5NRMqoKTUn3hmhdJYqaGcdUHqbtHHWJcDBm
-eSydhszZbfBxsMeB03ovspR1WlHi+A4SQ1rAT18DguKv4OAjUAinWs88PNYJIJoc9fQN+0ERwb0a
-SbKinN7fpBE0e3/4CEOKj5CEZYrwZPoIVaKPsEUUVwoBWzThjNAT2aScoCUHbyUCniBuw7flIwzK
-PkKiZY2Opo9AacZzC9ztGj6NgG9RKPkIq2B7EmL1H+GW+RF6Ld2Cisp/z3rNZ7QQoo6c2v/vk95N
-vJKPXotv31fy0alsuu+/wIb++vzfhz7lC9AfHWgQSXi21FWy6wdsSDHxuuGshb7+X7/hOPY3/YhP
-IVlI3hUhUE0krOeO/j716V8sdPDQdsXZgLwVR9P/5NT3a3leh2uoAFuCeLfqp3K8/CRMCASubbpW
-f+nJF1elcMGkIxcNv4TagZ4UGMkZ4NmQ/DWQfiFB/Qzd+VwW+7gq7QwmCrF/67MBltBrJEYn/WXq
-91ZkXuWDJ5fwD1nvluXpp865/qvU8fOliHc+H2tJw2BAZK7lD1pN/VSWlQec1jmQs2WX5Sw4tZjG
-ogdpKhG8wQqqQz3m2gbRxrz2xD7qDKdtNYQhonYqUahJw8g6W02l9g7khfjSpbJwPyZQfZwlDAn4
-kT4KHit4zUxfEFgqZzclG5126tLM0QWkIdypITW6wUOWHK0xK1nnaUIl92wOc/DYca4KnbSJrR0b
-fa/YEvmx55K1uN+Zhag/KaUsR05ZNHW0Ndls3ku0n5j+TTOaD1NUK7UDOMgU2VNiErJK2BRuoaIk
-awdqId2ppYhQgrXUk2DDHgLFrYqRELkDkjCLg4dKgaaI1JP8bzJdfV4JtWBva030JuSKXFPN8b4B
-XZqfBLkgAyqbwzyQyAgVfE9YBrE0yqW58lTUYigthQAcD/MwkHAVlURNnF5QZ20/pop2EJPJCG3w
-5JC/YRfJp1ijnmeXiXJC8hYUN4nSG7UKn9pQYB832qTJnFwrlJajNvRRzjwCkNoZPzMOC00TIBgQ
-dCR/hRHhC1LMCyG8QNVp8nDbCxs3N+fV71GcmnYjqfS7I/UDjM5SkvruZsHybYPacymc1Sgzvk3x
-mGLPIM5d7/cIoqt+k5hZeODYMQY7pQYCDx3NLJ+Aaiffa2QpJ0Qukkr3ZPxgcDMo0MQAzlkY0Spi
-NRwtq21KN+sFC4MkLW5ca4qj0ZfxkE/PnQlp1UEcXYT8S0WTSCYqiHikmvBjg85GVbtGrRXJXkBG
-AALOQoq5RuYmiotLPYwJ52tpiN6QbseGJunEisyQqEP7jdaDOXk2K92WTV+TjFuP7rBl+EY51jGo
-tOYuf+3CbrUM6BLjBAUruSuyarQ2MVvw3qrMhTanYjJynidoQOaD+MGU50LfUy8hrsA5EfH43giU
-nVqbyVrVEFuSgmtAEgGkXQtPhCkcaYlYaDWiFzjCwlWny0LiDupUZZsuXDqBXStqr+s1AMJncmhc
-OdOxuFnWEGlQ5u4GV9fwoZzm6M3S8v6qQ24itgUGWuwuHaYSTghm/Guv9RNBg04xEhUJHtCVshGw
-7tzIWukhQ5DzdstaFEeal3EitYYwkmN1naxtphYzJltqm/ECrby7yYhyIjvNugpFqil9qActehS0
-TnhDFlHoXLMep7chngBRo7RznaWG2cEuUHvZhkY/l7ZRr/3QZBjqUmiL1nsZwP6GXTj3dhPNluaF
-TTN1thah0r/LLfRNweCrpMhATU9PJbXj6x51os6HIiBfI9EtJVR++nYFk4dx5sp6333vm3a4XjhA
-yz5a/tZ3wyqpRZC5S2/RXjEneyjT9L5JWeLRPRCFZ6icaeUrGKzoHpU+mieKpZzseBa197EMd5Sp
-kaAZMGXMV3RdoEx4sAsttHE0ZX6PtThAhiLujlr34VO8LHhQE5kp1wQj42PBee9xyUSBauwU1MRB
-BoYDDjL2puKilSlFm66ajK/Uf6NgpcmNhzpQcfqOS6MKvFZJ4maHQAMH5JlM8RpPmKpwQOiGFEJs
-GD9kef+bvPopebVaPXC0+L8PNLffmzCufjnE/PjM34cY/cuaYEKKGouMD1jJz4cYWV3xzRbCxqhQ
-/YR9FqwvlBo43nCO4ZzBPk9W6+9DjCR9AZUty4APVo1rE2/UT5zp33Go/5FVVbgtmNqYdvJdqvzp
-EIPNtGXW08COQXhhW036jHDB809t8m/OEX+6xicEitpZS6Ih3c/pHCHzcG4jD4WbPzmDStqanP0V
-sKHjw8yJEcUV4DvaJ2AIquUgXdCwZIfNCsmlcl2i2KUXwreiNPOXvqEYYscYWD2z3etQOMURG+Bs
-krvZRXdSKpwgynthC9UIVEMyyxGq1nq/PMlmMye21mTpu2XV0nzDCaEmrNAlEZ7koJjIBdeZUTwn
-42KGuxCxscW1wrqsr8YUJSAYcRqSDTacvFraCBBpcTEyaxGcA2pnj9j1oqKEZgmHKUBArbUdI5FN
-nHvhZES6pu6dgIp7akuaAWOriTSFGrKSd1AAdYNwTlVWMASWcepbFTcWWqh4l0LrTjvtLjBwpraV
-BhSIjTpgKR9IBGkBQoC19E0MEwNJIQOJjQbexiURKcyvZYyqdnJD6hsHOS7hEZdr9LMQ/cIbDrWY
-YtkTC3ccZYYcPRvyIWsEJbTDZPclknCuZY3LTC4tGZ9Ka6QeV2OjdyuSttnJ2tRlZPsW64iJn147
-owSgi0SKme/IfEE3ykGVPMAVQilv0UwgFMXQQv6aoxAST4v8pGLNj1QGkSSqrBiAyFS+oo7W3Ukz
-GVa4pOJ027bCkm2Q4Ys4VRT6mnib8Xry8GSUCzsfmA2k94TopHHxzBmHlYMPCxExKhEW1ZLPWmMn
-8zyeKFGH45VitrmGdGYMtXwU+/SBFF9XOlFlhA/dDF0cdFXTc0DLVeVxQgYqtRGySm9lJBwfAgVd
-NFeZE3l0ofSUV7DDG0ZMpyx7pQuExyq3Msbr1KpkYFXRQlZyCAoqW12W4HmVLRd1XADRNKPasD1o
-uRZxFlcDlCelWcqcFs/625bM0GvYI/HnSAAGSG70g/pOzS4ISbxKsLawICoEGzxpaCLI1aI63vao
-zXRd3kVXGhgEOxBLEjtS05mXUTNbqExSrJ9mQ8adDTppqB4CBJFIt7FFJgCGhP4Np8zohwfGf/eW
-n/eWVff7p3XUfe1ef/z69Jp/////76ZsXuP89ecAGUvD9TM/9hYNL1giMxBwBql96hxEZz8CZF39
-Qq1EksgLsqh/bB8/4mPtC1UP/KCR3saGZ42vf9pZvqCcuX4jDlVsWauDxn+ws1AL+HU9VsDfEboj
-zCPD+sHh/dO6H04UN3XK306qx1rm1Jhbxm44xfltLcr1Y4sZ+mtitMZ7lrUaR+FJ3QVCIb5kXYyw
-bowchbrpq4ppRTazOcqdRL52UoThDcxIcJl6dQCYZQrEMjkyFd8JXLpHc6mC75y6ECYbiQZv1TaH
-OEl9oHzNwgh81YjeWA1IDukgxOXSMMBYvKdm04RZ2fgJGg/XuaUiRxknSS56Q6p1d51J2ZX89KR0
-cN3AwrnSjDKPW8bB4paFiBpT2y/TW172+e0spilVYhWCizMrAtgJFLsW9C8kDbQL4LVVl8KY7oYx
-XPWS5kDPbIwGGtGWi0LnBqes+wYGgmUSOtyA7pgxKle1lgjI/Fa6suOkQWIUU7z4TSXcviHTEUmu
-kUYCGUchFW7BB7Zvct/oT/MUV6099yP6TGlYsweZutjvpTAWn9AaGh/lrFqDjGKWFGIU4u6LyOgB
-pCiJy/2SREtt10KCSB/M7uJ+ULhFND565dtQWPnXIiB9aOuZgphqrFjCUTbI4to9wsgs9EAT2Vq0
-svaKdqmRNUPMZXaWQJTXmswUe+vZ3QJeOQeiixSZ+A1tvqRziiYYwBWF4RLu00xQJ/km4/ggXVA3
-CuTqRleV4XoURsQLkDNa9T4VJTiDWZx4SE40jSt2nXo/arO2C6e0JgNgFMU+FRTyhGohGMoWGx/h
-Cb9r7k+KofqrsnkK84mkYFBMk4xURwV8i02JYKZHFeFUVAk+OdE4GndD3SI+KsZzdBFLOT6Ukrbe
-Q9rw6TYt09AthbWMHpTRY8hj4VMbSARMaqtEj2pbTndwKKndJW1h3YRaIBtuELRx4jSkj0G7lVMx
-2aSVU9j6WC6yjXc66tpWbbWPQRdoE/rbAViFqJykJ3UU2oKktKaFPkVz1bOUYagcBFaCzUL+hpxI
-F1FN66LWCJ0hVhRQIUWYrwC9Vt9Py5Kg/tS30r7vk0G2uxVY0YY9qolFGFF0k4N+BLKpy9WBmlqM
-KFuVoUiJHUG+JeYsr82ykx66OEC7TVgoJe5qo5N0vFcZr3sAbHrtL9gLHaIoRWAQv4PUha+a3pUm
-VTZnjM2FLWjK4A0nqG3fG3rQXUdNjBzVjCppY88kMdDHJgOvUi9Rm5n8EFI29mqZ+JKBD/oqU6D/
-FlXl+A1MavQ6osR5BTNaomygjyAMlUyoqFH26V3BKYpCJXKETz0ywC1GXY1+r0xFhstuTkbZX9DC
-w9lEEDvVjVu9zdC1bQOfHBVGlKmVSg/w26V0R90zvC/yZJQIyMNsOM0RwpVwyDlYdAgFMPwtqUcn
-UFtOZUteHGCSAYoJtbGO8RYUI12Xi08K4mRIU1orXAlcKrWGKhvNuzCqtCsq4QGVmzkhd78wjC3f
-Unr1bmHE3gG+oPCLuki2i3NNaNyOALfEnHhAVqIiXPzWqWkIk3mRc5jAgaH0XkVSZcv5Ru7dNkYb
-nb/IKbEC+WuuLGFN7tTYGhnbAcfEnZJMzP0ESjCXkTpE4sIhjdwW9ZOnOpjLoyQq+ZY1uj0nChKq
-FE0M5SSrlfiMSaT1Ljby9E6q3npvUbTp7SEJ6tnpxR7aemC2UeFkQgGgR5Vy2Qu0DHEDRNXwj56k
-vH4dR0q3dhgplEBaMg9vmAL0t2VnSevPenuXZEr3lhezoOwVDGs2kqibsTOZLXmHeOAA7gd53Hco
-mQaI/0RRLT0MJTLjtlku4QuVx/GkL2rwanWzcOlZRS6WYI3pphoaZkjQaRiNGPlay2QbqP1RzVvW
-K2kyA6C08Xwc62wSfXTQpq8GDuUp1bC5ewOqU+YYvxXKqosiG5tMbAbRTYgCXvrc4Dujyiym7ZC2
-ytdxpCZnW/NcviaCrk6egHrMWU5k8R0Y93jC+Ux+NZqp1oAetvrrEGbJXaThnIXVQdburbjjmAxc
-29ZApA32jJvnsM2wiwAfM8b5+1SLwteinRIZjc55vo3LD+GacsmicxLXgJSQrim+S1nLpBrJeaUM
-fDXLAGZm/YEsM22pFHP9Hupq8DIrVXj5SDgBJPwf9s5jSVJm67JPRBvKwZlGQOiM1HKCpSpHa/30
-vcj7W6tBm/W87+CzqrpVkQTCOX7O3mt371EnJAo+Tt+3W3fNecprQ1/pCHKdyXoFDAyYTenaH1kj
-PYAnoiyDvjERlRz1aAw09OCdAZ/XZ6AnKN6RTvrIBOM7+slTQesxFstmJphg2qFLgnCQ1LFw916Y
-TS8CKRAKy2F+QU4tnu1GWCMdLPqHfsIIlb5xP7UNbd3JZWdlMXH1WbWJNBgRDrm8YYz8BKS2EkBs
-PLUEy1AApjW5jdGa1tdILO6HR13sbBM71f4VNLqzVXto34a1BKxUF9nTaPa17rdS75lzWSLDhqCB
-fGx5pTab3JHTQ5op8ZtEtnPWWF2OTuICP1eVNZGPIIcu3YESlt02BeuV+HoInyqBgmjvFsfq7luP
-Wbk/iLg4J0TCdMcGSsNHCfn6ZkL8IXYGuvZXxU6qP7mq8R4iD0jjhnNusLexJhGiDavrQBqTy0Tf
-sAukkHZl/9BbGOKAeWpxtpdmebEZT3bryweiaGjOGhJsLtc+R4sDanWIljcU3/TBaQSSX+go8Kkb
-xJTFNu2GnofCTE30ahLNYkQKRLWpEnfiYuVzEtRD2F97MABvvWdZTyK11KMAJQpmcqpbfaOgkCOf
-TGf9X8iictTgliMr4I3mkDTv7JoBItXWTubuTnUJ7ck5SsonFoTR2S6u0G/JarWmLYGtjGNFPNhz
-ABp53alltn4Uw8j39xYYxVstH113wzJgfyv4OM86tINXO/ayD6ha87lv9B659pg887b0XiUbwh+d
-9t5dw2DwKxGLdaSNOkE8hSwJ1hDNE/ukfFGa37cV/+fsZslukEvCWXfckDFAO1f00u2w5rSz3DCn
-MAVIe88ZDNBfPdjfbnDrOwOu0nWGd3mmZi2qc+g2PvJ28THMrbhxnaT5zOLUfrVczaY3bmfdF3hM
-l/1l5iDyaPPSyVk5QaVtmr6Vn6EauzzoI09dFlFPvD85oTchcr14o9N3vnSVjGhrMe/nkUCwf8RZ
-oXFmpzJ+10QUv8vYsceAQqthLryg9x0mlQIuGxrqK6dTIWoOEFf1Psy18SaU69bSSdjWb+rIpMho
-o1L2AczgudgOBH2U225oes9P0mL47rP4o4XFFh/sZDHuoypFKR2OZRcFhp7aKUR6GOQwRmdEI6oa
-SBipnM4rTkyZWJiFZjTuoasHBi1qWBrwFZqbxgFyYGIyMH1Yd2EVMcinPw7ndch5XBEi11B/ND03
-3128vNxWRce/p+zHbmCXDYSLXjuD28Jy00himS7uzM5gZ+UjJR1efIh2bcROmz17TRp6YYDnCCRg
-KOWnZT+P2wKCitri5eHvA9xMPV+aSB62srMXCOtqKIdDuxRUmnRZQGzJzuKdnnQjst6mW6hmbASG
-1GSNJq/8DWrGYV7J1kWyfrALP4+XQFTz626KFnkYpQLwQrsY8hvN6DBo+JDlYI2Lx+ta6ozCLbDp
-S6C5Pf+VY88UXZ/NFSCsmRD0JfIosmxd2P0H90/a1YzDeK9c5TwpyGgkikbpom1skYzEu9jeF3R6
-nUHLjNpog0YHXahoCv3ZgCbkbJBHWYsP9G76gIWU/BZDBlI8czOn2IFoHE+eqdnx0YWacmkacFKp
-EM2bi24cFiJcl1fmi2EYkECjsDElJeXB5DBzgFbtmcsxXjrYQCiQ4vsmy2h12fjDjM0Sijja0d5Z
-M1mMNrrpmp6+DSKfNto2a0QTFS+TAyxEIvtNMk2rD5hVqMWblP6SzwBXTP9Ju/z/vYv/tXdhAYj8
-v/Uunsrvz6JjAP6/dS/+86/+q3thi//G1JyRs2uAC+VXdGv/q3sBeJSZv+lI2pkMn+lg/M/xvgAu
-6tE2R3djGsgHJVP5/9EZt/4b0l19/Z+LyAl75f9L/8K0V6nA/9pQpkGiwyDxBCJSPk78nw5ANVlE
-JFT4TUoxg860ZETcxjSOO/D43c5kg3pkK2Lyth9kCoJt0tSzQ4fllgWlewjbxg5cWr77Kk3YNxWq
-2JPw/ivZfREHYcpT7gJ+3Dha7QAgFHQlUpqqQU7i0U6Px+FNj9Bolw1ySSOx6EiLQfuOPWP8JDVj
-V1bibkZ0dsQSWJ5rVHLPU67ejNCdPkRq1084csKHtXRn89ob77Yye3TNVXOXSZhJKvzpPa24mHXe
-AMyJ5C6c8vJnCM2Boo2ohN2kivrWawFRMoG1zgnhEytLj3yhgdk9OzTXX1GraiO83rjNyA05ICRM
-76yJvqeTG82W1a/cheyGNlESOldAkwtr+kxiTdY191Hx4Rrd6HfW8IGRQdYbk92HX6XrgtWTfQSe
-sd8IPX5tdKTrNBnU8yzpFUeODiSfFJUTM7Kjk823ZUwiGGjFeT/qAgxXNKe7acpiFIFkHvmjm3j0
-kJKVN5m6Fh88DMck7Msgm4Zha2e9424rJvJ+izRuW/ahG7hhrOeBZSFqDFyyALJvlLQs2gpW+YEt
-aeMdtWlObhckp/OaBhBqEKhaR3vp0nE841nLb3l1dJSGqXdQBiIBUXN6/HmYKW5hFe7Kgvcd+rSK
-hnOf1g1/mvefoHRxa7g6C2xhOwFRvclBujLQ0ilo9LG/pMm30XxFBV0KCcYPCNtBKPVuj+3rYizu
-Jg9f7CXep2Gxr0PsXuq3tKN/yOZPA6owNzV+dZU/98lqP7XiI2XEMfaKo8KR5VBc5qm+Q4d5nUv1
-0KX5WYbhuc6jw0yexdXgGffNsgXirW2T+oSPod7VRt76wkYzMD/2cWxChl43VUgkIg+DFoUxFPbi
-KYnQdWYI4IIhkTem5hbobBkNyOKAiJl9FqP+Rg/YoG5IQ9pP5vDuWvF+rOXOHL760L5Hb4zI9MGO
-XsP5w8Axs5Eh/bFR72BDdtbOiTt1XQw34D7c60WKi6TcjRnhA7HVwHQf7lvHwcnigYLrYRtaJMn0
-UKfn+JX0hYNIq6CTWCMc/D6N026q9TNEaWyyjuQZE7jZP1zBm8it/MgFgVgN+7ovjT2aRYopL3mu
-KyvZWaF6goV36bO5YctTV/+y1N7oUruzeaNnwnvuYvnMhIcjD0s2mFqFIVC/savfOBKrK0j4uROt
-AhqX13XBDGgcdT1IMeSt6maksCWct+xfVej6R1GitHQSSg6subzp2lfDiwMacngvtUOuSYwnEDEz
-hzbUYv6bkbruI5v0N3Hf6eqHp/YV6H2h19taebe5fbOk1q9Npap09TwxTd96RUs6SKHdtil5C3Ff
-fBqZlm57VRAJMCUPEBKNLVrL27Wxx9YeehjpEFQ98i404u8pQfLbOuMd/Nb7SYj3fqpfeUXT9My0
-C+2nx7jmLqtwvZhFe6932TtxFtyf6Q3y4/fQLI5ojINeYYJWJeg+fKBfamy/x6Z76QlC27YdOfJ5
-pn3xPvkEpX82evNgju5LHdXPMqZcYODyERZGwfGC5RTIDOZW3vdy2uOh3o1xf8tYf4vbtr4rJzKx
-6ijZjcTutOW3LLk9U57vpdXPDq0p6pyi/JiKYccW6pJwVKn2Zk1y2zcoEpVcPsOQJcdJ9l5PAW1H
-LTdoT2yNEW/r6hp5xmHpYSk6/ccw5vNnRyaKmbN7TZ+r8KyzDOp6/292un8pDOGcPDESyNSwAfzP
-jr65r7IcqRm3wdJgWsx+WtYF5v0fYR1/TZaHlEa7433EPRudNTbdgnAzBn6gNL10O2pKA8RZ51tR
-Wfd12H7Xsd7uPKd4nfPxjoDuHWknz9KZtjRLvpYyC0p6LuSb1ID1NYDw+Lqtdhy2WYd4VQz/elPe
-Jov+MhvqCmXgjjCz47QwvcpSwvGqxNr0Awlo+hilx6St2betBTP5gv5I/2eD2UPHsoSTPl4rxmhI
-npUq7kDxH/IcRl1mdD94Dp4mvf1xSc845wke5NEDOznUFblw4bFz9hr+zdXg2wi4cSBIyXSKnXEX
-toSKxMtRFDdJY23Rud+opPohyXbkj5PLVNuc5BycJeEcGy8uoARrkB71sbvGc/kS59Wxs0N2JlwJ
-DH8a914sb82cO0EvH9rew3NXm6/IU7tXHajpv6maZzJi1LjJ6LWNeoTFvGz0vV6R9VOz1GMgnq4s
-Mt9GnN2moaHdI08J2F0wgW/ts0vwAqrhgXMsbnmVIyPkWa3sdIuQ9r1efkSTBxDPN0P/iBbtXELO
-wzfxKNlaQID9TiKdRkZv9BT11dZQ30lVN9yIYBoF6jXN8puQDp9VNyc8vvbtSLbWYWw/oualngUJ
-z/TXcjRqTUeE4ci4oMFnJUbSyrz6rrXVsTGyg7moXRSFjHXe8Z4edSfaCQufCvvzbLgbMDUklEuj
-qW49CIsDUmp6h5tMe2uJnYiiWyGOmYRZULPNB/YJcpRejCKjDKJmxvXzTCoH3VfRP6nfxaCiOyfb
-093YWkN01YtvduzvwnU2VW3hyFSX3sn8MbJfS69mKYbpPdGFSccPZ8m2dM9MZIEDEYDlFePbjj74
-wYACj1WC8bV9bN0omC3rjJyOnYjybaIqAfeSZN1TCORvaWYde/by5GjcVF39qMvho028M3JxrA3h
-pkktPyoR0Rvh1rbURYivpLTudHRD9bhmnrn7smSjy61iWf96ArXpbJ4qq4RA8DSQLcVOLMhd9ZET
-FJHor2wTcdwud2aX3aKSjlBbacxPaiSmJNyAHge5wNHT4pIGKVKNRPTdxoTupO2Tng2nVJrHacBm
-REagF5XlTutXeuMyH1qJGaO3+4AgovKG2hKNZaR6YiCi9aI/8UZiEoDPALDE2SvccD9VQDbzdr61
-K2ywoQeYsRUnYmLkbrLcbyfObph0U8Ga7BdV7xwZF20HN72FbbLLdfPF1o0ASPFN2FasiHJTu211
-4xrOjsQ3aBVCbgYRjlfpAd+NzoBV/zUaxc5W9Di2wzmvr3XL/e8uBJ41TfxUGyjIR4NJtba0nj+Q
-2wmVvUX+bte2D35jGxX89UqRqFczHWLSY8R7lJb7QhhfbZkGgxkf6QQFCQjZwVUgqLXPOA6DoucV
-Dy35LIj9QHt5jeoh3+uNS48XuVVjPZX0P/y2moN6tm7KcjwhqAjaZkFV5h0p7QJ0sr7nNIErb+JM
-8y2qkmyKAl0jomYkg84ywveQstYoAUCQ9GYU7MbRTuw7+zc03kyLKmmz7tM1rd+aa/giieek72U2
-ASvjJlF2ENsPVX+lmkVTlq1EY5irB8MZDnTHeehytbGw9qeiFVS2jDHYr+SYYzWiUvP0pVvjj5vy
-wvDNDCTmDgtCd8wJSWc54CAql4MzPuXdWzXvK/1ezi/DHB6IICYosd7B3gAALYOun7eWhuR0wLxN
-diYA4Tuj90ocqr/SlocSPjNtvy3wk33ksB8a36PJwVctX1oWZiX/mUblT1l9NBhc+Eq6fhTTDOMP
-Y0p6e1w5CsMTbdZAcIN4PebLhV5QNp1aeO20omBkOyzC9SMYU+axBclhGy0WlOY3RvaUe29JfUTp
-cBWZc5KIXjXlBR6qPVaCLAKzgAYyTsMJcwJiWtMameOOfGijBSHiIdM2drKo7CPSrXq9oHvHM+N9
-z2/wVQBFOQ+Z8GG65yeCHVu/zT5pGb23PPBuGuaBPTSPBev+2DD00EzfNKK7vKf+JUh4fozKcOO4
-t8KLblo6GJNZ7Jxu3vMUHCMmaq1oxqOjBAedqeIXdrN7YC4d0Hbc5HVynKuQZYTsgjl8aLuXPGeg
-7VmM30jcNGC5GyDJCat5Cq040AmHzBHmkGTuk5Or7bH2cBPiMAd5015Sz9jMVrdvwQJw+0teq516
-ZmG5B2y992ACoL5FNGvbkFHMwMRw502E+rRG1frZbE4U32TyhALGSjzj2KdFDEP6HKb5fiAtlSwb
-m8RYrE0nA4noArQ1tfKJSBqXhNEi3y1d41vK82NkuNBjpHfomtemppopzFMyZMEQkWhLJ4fxK7Lf
-ChXjSDGhHmzNLa+CjEAmz6yAE8uW+brETGptjWHbzDPs+WMBQZY0GmRYPGQC2TiKAEK+ABSR/GEi
-mvQhaG+9NAGqwnOXnFf+8KwHyTL6WY3YOveutUovbvQ7AIYQ9levvY9TnO31pNjRhTt6lXjorOas
-e/WGbOMg8ebHmracvjwQ7rUJ089afyIT7BBytWL2w0tdXEdMmI+lZ+bbXpA9OItdE+VsK1nhFrJl
-m3I6YmtEzKWW/lebOpaXsg8GZFvj7NanUsOo6Azpbci4S8zhOwLaY0f1r08UnHHud4bl/g0izu5k
-nV2XahVzQoBdvTzJqMEk17eQhViocTqR2csmlqCJnmwrdLcEJNARC23GJJmrzo5KSFUojan+yrBP
-2YO9NlyZSDj+uM7z1nItf5nDtufMEtij4u43HOVFpfRxVZwe8lpmhyS0uQMjRqoXQqRcPF4xLrh8
-0rXiEBl9r24hDFXtvfTaiWmqVrnaqRr1E7gc33KnXQgepMcD5lBEU4nfdQX+JSUDsokoJlPt20Hi
-PUUNX7vLtgJp22TON4sBm8XJdhmv7nA+WNxIQdXMQWLp3j7Pem7niDHmJkm8gZahNCVcJV1Yp7DJ
-+evD6LwSgNt8ObQJfLPWyfgLu+xtWYb8prFCZpRqbqKR2GHScmFEAHtmClrdElNeqqBmBqr59VDE
-KtCLdaCReeYLDZDhRGLafJt2HivkVJVPOYvjsSNr4ZYgbpobiCSAT6ej9m9COH7TF4x5ocHK3yW3
-GKvP5FVtHcEKpGddSJ6e5TygQ1ev6Ltpm8M85nYcuMqLU23SlhfBrEgBbeMcRrZWfuGZxENaug9V
-VUQHqOPWSXSFTd6xLAKGPX2Q6Bw/yjzm8XE1nBblroIDdrBx1GVf8KE0ousYN7KvL8/uuHaW3Nz9
-AIBDQ5kKc3yaMHd9xCZzJiQ4/L7VcxonMh7qx3V3tW/dyrvo/chv9VE7y8lhRyDMiSKCjL/4viVn
-4EIcK00fCdP6vkw8+tltWXdHfJDymvICvKZtKK9dF5uXJeX10EovPo9kUdx4zKlOTC1BYTtPlmOV
-MF5659A6hv0sTbZkaer9pEXBIfE06wd7TPSDRCW5XZbxm1ZX86CrbtzB9VoPvSCOZClkoJcZmSUI
-9fYSj+/juOgYOtJ4Paau6Y5t6/AXm5rPo08UjEWChKWd+dTSGxCnjNoLwe5AQAwE9PpgUbKvP7Kt
-arkfh1beRFkb79x+aQ9IGgjhEGus+NhRR68/8y/5RpL3fYu7pb1JubpUB3F0L+siuq/soT0gr4Kd
-nhEB17g/ulnxuaNOyk6KNsZmAHoDGp75gfLWXxJUd4KUwq8IQL9tPY9DyYZxV/7FA1kM42lATkgk
-a0QuIdEg//mmpozPIeYR2ho2rs/a+2lFlJxVFRGEk4VYTuNcR73a88HruS2HjBPSJDxaeVNh12xk
-gLuHD26qu3GMPNqBGFxi6nvEVeFtWnPYpdOykR6tBTBLohnUrMsrqW+MdyoNYWfOF7O4i+o5B8Se
-RduRKeOtHmuIWS0brzWCJ2l6P7rHA6FKN9uXJoHjrfK4X9hbvieF/vB3M/0dwKLPnxqSgDKJ6RE2
-U/agSD7bK097GUMO/O/gSg10U5pjVv87QXbEp9ozf9ZSYUkPkhYaPHbkNA9TtLOBDbzwFoB+fCBq
-D8XCtL7aLYdi0J28C+kH5C+u2QvZEqsd18OpONmljsEIFofc2wOXJ0u8DwsmWvB3mHTJf+xBvZaT
-4jDXuCUQ64XfJqN3GSv1+ndwXZhgjoZ38MAjxz7I5vhbBpZv9oxrPx34IW4mT6y/xU4hmvKhknFm
-1jSe9fyB0jvhL7or6mJNpP5JIcttbFJI2D5EXMIBfa9SOE51i4NJORC8L4xlasJrjehbY74NoA4p
-XWu76InXmx+7x7hLeOC5n7QfywtfWjJDfFdvxt1q6AZqw+fZpvaCeYIvJvlhemHfyb74CaWCOUYN
-6CM+zuBiISH7+/HQxE5px/309y0RSvEJpBMcTG/4tDs+FOCet2kzh0d8GsoOX2sNYUryXWVFRpXO
-EPVIVqsM4PgVvCX0wo+85bSaXNeEZz6OJefvqJqp9y59kV3J3qv3BZl2/t8JKdtKP7S4XIK/b1gu
-RF3Jid+O7lCc7HbIHkYof37RTdqZwCh5I0Un99rUoENj2nls6zG6/7s7x3qZvlD6N1hXLO3cKky3
-auDnj4jJbxSp7f+51HZE7GvVd32AzWrWmN2x9vw9UaphxfnPiCKf+YSojdFggKNi4689smWiE5G0
-jCYbr5ZPhgTlRoQmcT/rpRjrVbemoLn4cNeaN4Zk7n0ffziNSTddFOEOK7/11HtKHMJUVU8dPuut
-FxvGiYhAzV9DIy+T2etvnp2wtAGGos3e1RSiCmgeokkt2fMKcu6bJde23VjfElDmiWFnZ+WurdXD
-kNbs6rWZIFOUdx2V326OWtpUkfhHLsp2IUvlOMPYcXLrXLnTw9i1vxjtjUCTZSBb1/ONyBK7vsrK
-TTX0x3DhH8/6TWOPzYEHAaBEpb1EkJ0QKc2nbg27dAzeaLXbEC2UZXd93+HQ5hdeM/4izXgnx7PY
-w7f7LG3t0lP1ogs92H314fTqTnLv4yNI2UP/ZOG9R6MtGbUd8vfX3rJ/mTCg7m4/WcHuLDQb75kQ
-33gmz6nSjoW1bExzvJ1scHTdVKwJPRYpFuD/Sqd7x9pFn7YWJctxfVuXHqVicd+r7r6u4m+8aGag
-VTr5YGTC7VG0H4nA27qzoDdrvE59+djYBeFV9nHx9B0a+ftCAi4brWciTI+il6+2U14a2/Lup4FO
-laqKZthqE/0lFfa4Cazxpx6rQypdc5PzwqJrU9n4KeYXcpZ4GpW3b0QNdGI2XxrPZZ4lbiiJPom0
-JpaqNV+8wvrtY/sweuFpaM2HeLR3mpUFIeFviFw36Jmu2ZpIm5LssHWMqt4VdcLsPKmfZwAlbFCu
-UZQEBFIyJbeZFwDpkuYHLsogYnQQero8l8J4EMgcfGRGU5A0LqkVcMKaPnoZqvmNsGnbB64RUetS
-IDdp7cf0xRApoFIVMd4Fxhl6KsVW6VyRMQNDMRVdIOPa8PuamAvdIR1niMqXpq3expqUkn4ZkqDS
-vGznrkCvsRH2pmeV8r1RskUuE9oVKVQI+tjIHSAjiXSaH9v+wwilLyq+DSQo1++1NVtWk9nJyyZU
-hFFiHDAxEOKrZ9NzRsH9QUIHWAWELT6maO1IsmG+/0soQSoE222E+ZSBwQDAmSFJaoYlmBMCW/KF
-nQMC1nTvlRYh7oV232gt+2wb0NiAbYKRJCQ+rbafAAL+MPHJTka4GlGjztyRo6HtbPhzZ3PpB7Jh
-tfZ1MOrep4vf3JUibICTwUvjB1j70WnTfzCoDFZNCYhKNFq+NyqRXl1rSN/iLnZPuOW4yB6aRcdh
-e9dW2DMRZhHlxY1NgPzgIDMVBgHXumu9oDho/bGhbo1HmbD7mPpo1QqaQUPuDV6/WdCxIqv41BYI
-M9B1czGEMj5gB5ZUainGiSaDtDJFU/3NskoCLeHJx6yNrIR7ONE/gLWCmXOqXJ2Fqph9RV2c71Tj
-sIiGXKCNliPpaYVT3XSkLO6meXZfIKmF2ymS4pRZg+WTOISBSVY8u3BLADv2WCM3pjEzKlIUcBg0
-IncTm8aHg8J7U/Dyges7oa4jgfi2Fb11xo3nbZLe0/FPtoXfY9m9TNCCqOSr/BNpTmqwLyE0Rscq
-xLbcfMMoNP2YDOSPVQmZTnZ5JTfr0HojxIQkaOxdbkhA/dgECypRvfOILSM8hmaDTRytaVnDkbjZ
-aFyTk6gACcXRDzFv4EuovPAtZYTyCbZ0fR1paCXTzPQutkvhNk5AOTFaZXttqbxHuqLYa8rFq36k
-MRZ7RYz2+1/Ji5KRYrioPCIXPcL23tvOocAtUQBjhR9h0g3ztCCW+StbCWQ5y0XKq522vCvTNO4C
-9B30SnGwLMF6CbalxiuTxjbjHgagHUKwLLxJer72Bgnx9KMMk7U5bc1rqrjQfhkShEfvdgQ/6XTI
-vEF9Nm/jtJakkoQhGndroV1T6qduh85HT9Hrg9+lxseJnj3AIlXXMuUaZIuVcfcUzocl6vZ2NrXu
-GcdUconrMLyZnUw8AHPKD7izHD+uB+Y7mSmWg9foZD8XZmKswuu1Wx3HjP3METdrZBV7TAFPbH3j
-zZIP7nOrxdVNL8rwrlnwR0ULTXFVxep27l1q7DUvTc+dZqfja+2V5z6YWrvcFD2zdFrcnedHjlXQ
-cJlzKLRZLPYMrgFour1sPVB9UUqDRPT/0EzFftQYySGMl/E8UVuz586XXSvU7NsT/apFJcUeFVl4
-t6AVvkHT016smHylDU4FQXvPaI0fWtjWxc6N7I4BcEtP3/TYXpBf7Ne54BGzBl27aozFbxc1S31X
-Muh78Dj1r/MIBWYz1eRjZtJq3+PMyH/bSeV74ZRgr/le3Uva2yOrMSbahzwT4SEk1n4fG4t4FUJj
-YlvFffyTuTpEwcGVxq1daktQKCf9ZQPb/ZCmbBLtmTfpxkON+WG4nXLXn9lcZROb535EZraOnuNj
-6Ik+3hWZSA/CwJreNTYnaFB0IKcwU5dIlZIUJkSzxdauvP4i3GGlEitz3DUpTwUqJOG+VVpSXbKp
-rgdgOXby1ZohXYSZnLD9XA7uNZeD+elhL0eVZ8bpnRtFJuFaClgtwMm1o6s3qMdkVVAydiP3rq6t
-t/1a3VeOnp6NWlIM9U2HH7itbR4WaZEMrYw0eyjIjr7JeIJtsqRKYH86Y1HEaY0lr33Yu3epRhQg
-Au7wmVEdnXnK/JtQ05KdqlDlb+kFvWSOY6ovj502O6kOcPSlXLcq24j3qrzK5E/nNmeQn7gHGFmC
-f8pAFCArpQ+kXO2cgc6hNUf5qwVGPae0zyw3JnNcS5uTV47Gu2tE9J0RVJOqpzlgps+03zDsu1PX
-+guU0fxSg4D8iSdv/MTclzxNvYFWWRsRoflUYgJxANeTu4uXSenzEtKeEyvNmd3oITsuAC+0FKtJ
-nQDsIuqincLUXEamuBgp38LIx+UurfMcGmPvmTNinMU58a6mpTyEonnFRcSgM9FdvnhqZOoHAIL7
-Drd2QQgbN0GMmQ6GZcc4k61Smx1R/hdHltonCBf3c1XWFm0Ju9q6svrB4Xmiunu0w7C8J+edXrut
-DsTH0rqQMZnqyUCDPUYt95DDyc02xTh/2XV/Ny+mfsmURrcQCHAbLnJd1J0UtGU2pAE3KFYEa1D3
-c5qLU1Oaw14nZDIYOolHgIXq3iGAdT/HEyKjPqqRyEX2eahd58N1AGfW62JUe2thCY33jELQ+pqI
-Ct5N1Bcn0JuoQhixhpk/jOIzngQgo7G3v9ENNExphLtA6iD1zvI7jRbXwYnzaTp6k9VHoD4ddJoF
-GZzTfqyy4qySWRVBprnmYwVAugt49oaLU7VEylkIeui3O3L0xVDqfL/Fnl0/VbT1EbQnp2UUgxVY
-Iax0LkA7PlZsCb4F8vRb4NzGxwCC4jCTBQlxwDAocEPXfLFA5q/z/LS0fHcyvS+Lyxlvsbcx2hKu
-fGBVw9jSFG53mAdv/hYIuXq64o3H9pAXgHZYnCjZ6ite1iA+cUNIFJOUJYait88R2CfbEDdQs/ES
-4d7SvqX4n4aKVp3k6O2MlZy6IrJOuA6qZzBa0ady4KSoJESjM+Y0s+zCvkk6YX2zjDhfSVV57jaM
-MZrmcDs+WNb6O9hY9WXWneGt1U1cGYMyJHptiXjGa/PdtKIjNrk517DoSoo05vta/1qVdJY2eJIH
-auHWQhHUiGM3Z90J52nxaIRT+0R/IkePzNhtXtnwoGOAYT9amtAfXGQQ7x7Y6GDQi+HaFmP+QBNS
-HlynmU+EMJdXI6rUL9Fy3nlUKv3nMFxrma563TkziR0d2YjdhVhbNznU4WoreLw+XMjm+2nsw6uJ
-2gu0RD4IP65qgKxiVDcoGDDlArCONDPf1di8LrS9EZoYJdKLrKBZ78YrzEW1CcD9xNr23vLupg7p
-1LMTvs1Fae9rKc5o3SEZ0vbyKrwozFYV8DdLOpuh6cpDbNd6MFcUw3m0FK8h+bt+Z4bZSZ/jgXBK
-7cGqjeq+A0b3oEwV7uw8Y1dahlc1zjz8lda9EOoHnoOoUBrIobhCk3Pfhe5CTkVO+E8t1nyNsjQh
-ujvq2BWUsBqszNtT/1ypeJJ70536Q2mk3h3Nqe5T9CLBE9K1n0Lr61M4FwxZkVPtVa9qOrq2cSNN
-4l5dTIzMBRb+o4aZHrM97GliTpvcaLVj2HTgfppqERfEz+Oh/u/snUd25Ua6redy+8gVCJgING7j
-Hn/obdJ0sJJkCt57zOYN4PXeDGpi7wNVUjEpVWrptquWeiXqOCAQ8e+9vw2St2TATEcq3O54Y82i
-x5INvObcqI1oXWdFdhprqgc4g+BpKwe9dQcy7w27kq68I+KwD+DUkZiUdnRRouKcpI1VX3ljaK1h
-8DZ3bVJNJ+xZXE7IzGd+nZLMLPin7FKYqGACh94tGsamecpuSvA6Hsj/48RgeWsj7W+BS/OIZDm3
-L2sA+VvmfdWuTcngtRi2N8NAraa7QE1K4TiXLh68M+gczUnZWuElanSybYtwOgeT1xwRk+aDrQqS
-RFYYrEmtmPdubOanc+oHx3bExsRIAuU4KNroQqXMe2SWjyztqAGEObBG1PRnx9D3d0GSexc1aYdT
-sD7RWVUa7ALEmB27tNQ7N1EZk4lpCo6hX/LHgzx0dBef4zfu9pbB0E5s2orm3rMGlcBe22ZPBhRd
-AmT8ZOkWsD7VyMDkUkQ9q6bnBtjaPNyVbdGdRdqNuYJcusQdHD2WxyoScHDEL4kMSfhlKFapIBRJ
-UkKaZwOnaRzYPOHTNGNo4/clVzPzQVxTs3emnAwymi/tYlgFEQ+MrOvKY+hCHmwbg3zRgDDqlJX/
-olXkXczZSK1vnbXH3qKCcVV1ZonQlQU43+AOM8YLRXqjwi54szm6nUyh2Z4kE/DGMwZo/qXFFOrU
-Jn++11NuPnSY2pGXOWPnRNXQ3hl/NTETtZrWC7TC4up9NhfXzD3zjNkp7sbFpg7o/bvFwemhsQq9
-x65ePwZ6uWhoEyQY13tnDMei03fRgN4IZmXY/I7KYERfcD5gqhVxdmkKypZXNXCpN5uqGKI/hQgf
-bANsMiNcKHECV+YOXzkHgCABw8qF6F0w1WHH8D4YXTJC55LEnV4RxX0l3wFUa0Csb6dvgsDJteuw
-vJBm4qTpkluLBvacmspkjuT0zhqNbdyR8+t33lB/Feo2anCmOWK+ojN5EcTKjZ9PzDnorF7BzS+u
-RtJeq8oarpN4rHe150c7wr5QbKq2OsE3pS6DUEAl79gOmNhHgTc1eBUbpfezoU4mR6k1bkuMiWXG
-rsAvNnNijM3KRwgIWKGF3AgLd4NodbNLcj1fGGKUuOu96nQEq8o2kM9YYHs+gHeM2XMo58ryTmaH
-PRFwnvB2cvT4Gnj8rF0GFJFG2g2nNSh/HrtUnlIcoxKW52/v9e1JNle37EO8MwQuDKyCQ+a72Tav
-+GJF2wdvQO/ZrOpYVreNw5SzH8mcrQzN1QLCMd8wxoxObT1wlow6XEqEcusOLEJo+78SSf5j0v9o
-0gcWAM3l38Nr/od5wj/+zw8O/V//5DeHvvdFg1Q2YczRRKHxwP/LoQ9fAIs9jnnhki2GGfC7Q9/+
-YhP1p5dHmy5ufKk/omu+kHcF7AhNjqYXyf/+jkH/R7yAwxsDjwN9z2YlMaHXfMK9WBAwYxng0myD
-rh327EEx2uS8tYJBRw3Shqy6OW1g7S+SBbUw/erD13X1Rz6eyUf5kA9Y3oFtW9rk1SX4afMzkrw0
-FLmq1h5XTsVwbIXMMPiHKamNZ4uCqsfQAUW7IY9mPjqYYGMeFw3Mp4QiCZ6G1oCVYyIlv6/hvOTH
-mOBis5yt/Jefv80fUwzv75KqpHdQoaOZ4S3f44e2KRHlRNPTiky5IfKbFsX4jolmvP/5q7CN+uHb
-INfg8l/3cNEQrFmiGcu39eF1gihoEsh0PJca6plWiu1Ftioa5b7Gra3JRY70Rdi+yexN+7q8tb1h
-vGyla99p3STY7nXk471CPp+2C4a3Whm1W9SXZUI78ZoFrbd2ASFjfWbkejCvfMrB7PNIB6O8tQvm
-XVufVRLH9OTF3TEwC2tGtYXyd0LJuCDnWMez3JmdWzwoRWfGeiIC5a3tJLRYzmry6wGhIjyy79Ju
-IcravQZOg46rY6PKT0evNfpdHSUzZtwGW9hOVxwgd2JMUm+TOBaJoqGWTNhsK+f/ZdaSDZdTDMFt
-zWA3Ta4gBLO2NTpXTYhjYhQEgk3mIc1Jo0Plf83zlHAqDLekXUMf8g+u3XvyIWxspB4mS+24cfPE
-jw5zAV7ssWSaPB+DBPYb80ib1FvUUI+wHPOgCVDRHRZ7Aw2mXnNi8KNjY3fYwQezTc65YEumXKXu
-CRUMSqEIoetA2Qsa+UgPT8kxHIofkAIs+OwtCZEKCqp1/OjNWdhu49TDhRgN0yTPA4fK+y3C7CzX
-tZrdiyoMjIdoTPC4KC9pEdfmQKOfTm3DrRm3OGxhTpMXHGsP43xWk9fayXoQ9dccvpJ3ZKMi4VnS
-hV2vKzsW5deA3E970RHhWGJztX3ntnVqk9mPDO+APVC4R2YV2jkOfjbS/NS5VI1nc95md1z95bDJ
-tdb3sIFlcWx8tIG1SnIi8UDnqzentcqTLDF5DoHGGeu91n3KfeqZXnUeGQwVV+wTFrMdzlLc7XnP
-UIaUrR1dZapxa9ztI63dTP6w6icqB4RbmMDuOPEzxODqia07aZNQ3JLxFezzk8gGPxmYdvbVH4zs
-jXxojDnS5riPyaax792omRggYtri7DOAVzpj4IphD8iIvvHNInyMpeO+iqwS9XEMS2xrbj6MB2HN
-oXExVC50K4NRwCNApH4gDdwzk8WZcpNORfwGjaXNDiVejOtyGNxr6myCdh3pvmZYatac0U3QEIT4
-1XhrmXLilmgSv9x3XuKJ/cBxAtyn8m2CtwXFHYe5EeyKcP5nqLiq/oUUJLpFDft843MoFITeOasi
-Ddt4sSAzFdHOQfK9MFFMFqbVSDOaidti3cQ8kJi3yMreQjYcDnEMnIieKBOHjZ5Me2fDrti3bZCR
-K5mSUqzLccK/xxbZm9ckqgsqriDG78FK9E9W6oxgZ/xpbtZO0vMDUnxSxuvemHGKTvXQJccmgq6P
-fKyJHzSlTxyrjMYB+sxkNONJIAhxYBHK1SHJ2Liuh2zQJrM6x/PBJPFSOJMkW6LcJJ+yrk3sARtr
-lFyCnNdDnDmzXPa1eb+SHOPvbWiU9w58v19Cqb1rs25Brs8RIg5oh9a6V4XzmOKmfUlEjdYfEZ9c
-EXUkMRUYiqcbkGaT6Ibvu8NBlWN00bVhrDZiDudh71sDnBbsXZxCBrOCpl+3DuGCISiclyibMfJl
-cRffofooY5+2M/Qcq81nue2sISVWEjhgyNq0CYJd0pmFTbkde/4tHjX11dRM6fYqyupTJDSi9R7W
-nhw4hcwRIuwS774zRcUrO/D2LehMzIBGOCYnVlPOL0Y/Eys26HPfj1bvvXr9MLxi+rj25VAxTegd
-IDl+ikWp9oyMIJdiKuaV1UMhxIusiHSvPR45TzJ9Lck338AJC19VjZdsMIpw35mthaI8t29TXcMB
-qMaJSWQuCuOrnNL6Kenb0FtbEEbR/6agehpAhJ4S+wfILUGIP3eKbNMq8bsWsbSTzUs+hSn9NnEw
-fQuz5swd8wHVqXbNW7Tj8KX1gFMkEBfvI1upGLGhw4qlZ1k8lpFkOgXepbpouTnlKgSvKp8nt4Al
-EKW6H8ju2uEEEbdLvruxzIq1JuczsyD5NVZLVWN7K0NvgP7iBVR0RUStcaY7TESsyMpvkzruql3t
-V8VjkEu33KR0Z33Ne+K+qy71O4izXmM2XMEB/n7PKt+o9/KN1djE+RuW1gDZtUx6jX85xASX6sbB
-+QkT5bII+w4TfAq0/CQzTH0zwi3zjp0xepcJFVnw+1WJGkcGaYrWUwMMH0Kbk9bgfIYYmFUQuLhR
-e25qsGOMDspANuVqSEjzres5rL93mQBO5xRF/IjDv8S0alTxRR5H8VUncORvA8PErYZHqX+A57Es
-obrDjGS4FlaDLA6Daz90dbb2VIlhciKSmJ8xlQelr1vFVrBIx/h6smZCSBP86CcuKpzW7zud/xwe
-PhwePMuG8/TT48PVN0jeP54ffv+r304Q+gunQO0JCxL30s/yL0KZY39xqdwCxk0Ji3Qdl937bwhv
-KcFfspOEiiloZgHi/a+Mr3S/EBgGjfkbNlP9nSOEQ8/Lxy08JxQBJI1TBHIHJxzaW37ctFI4FfJI
-NhC6C8WYxcFMhkfUzLNrQ9aS6YvhGkebZjG2zzjbwdy03Zggjenkmz2qSlIZMPJYS6uIif9I6sZf
-Qfmo/W1vi4bLMlsmL3liBEfXxyWzpmK2Mlfu1JCwydN4esWu1y5iHwtVLUkTro2o6cAiOp3Nkd/K
-xKVjBOYp+kOHv8+3ffZqgN3abbCUu4EkaIi5RJ5qrq1IkkX2aYhn5ClnQZvHaADvrmthP3huxsIi
-sBqEfuY+zqIVuKsL0z/Ebu2+tZhRr2vKwb5NTmszUmPfwJtAPUO4CFIUkSRyx2t7aGce2YXoM7r9
-DLzkvaP4aLXAuprUddlAiQxtmia577C3171DMZvVNw1ksjn6NoUlm8rE99lwhOEI9bgDKMS8K5u9
-bwyQWC5kFkIYTNNRg21z+vrZTyYUJFbz6RCoCZu6DtKBqJCfNY85ozhM4Y2njni5kluegcRgChdg
-dJpF8tymjeasLKjD3FR1ZDMsChr1UpBEfZQEW6eDF6ju0iHJOWE1YMeHmUK1p8zU8vNgiNTXWZmz
-v+kymV42aR2LdVXmw7OyS84T2dwAvGSQdDVURfGce0V1E/UTBSNzxC5ubXohHW6r2EmYlHhJMdwZ
-hGHeeEVHHA0rcu7TPCZ50PtzrzdDl5rTrsJkCzeFyc0LD6Xqe0EjIrnFIOowfxA+zdRmtGKio6NX
-ob+hLU7NeqRO7Y68vKNwMHrOQOOEjL+C0bGbI7Fapna+Cp7UhATHs9H/VoNtiyB7qabapYVqb9w8
-n7/lsLGewmIiAmRq0V9E5ZRdxPZSZRhSoQegWc0+GwQ0ICZCPjHX1ZwXQ0bNolYvoePgvi7a2Pc3
-tGelBhef1mcktxPcU+Y8X/qJ012Q4OGAoQv32RQeuQ136OozQUb6lBN+SRI3dfDrNSjyE3tTMlRZ
-aaq1HHFBmS5aw6ozEEFWU9Q6t6BzkdPtxOt3mPbNYENJTbOz58C7gbRaHzCVjOyxSm8f+kFGLFOn
-FBR6Iqf1rq9DKDkDqJI9jr/+xgBmgLFGi+a54SDkbot5BHdiwOvgNdUMfCzJGReiD5g1VtpgeNWV
-bny4VouwWbtsWVNzHKbdDNINsLud2uhgBZo6FZVFovedkxGwGuN+lps5iHAR+EH3POuKvLQoB4u2
-Nr+haRbYCjs1baUFtKJEtG8cXZockws9IWXHj4g7iTPfzhE9GFm/m5N+H0LKhs86TdYZ9R35dZzQ
-AwUa3Sfkj/aR4crQ9jeLn4gCwapIzZUwY7C0Zmli6B86rFAckiiqtGkvHTc1SDvFMDUBuR2EQ+xs
-Ek6DDC/zKnDXnu+GT0bhNc+YPdMzkgD5S9fWjrvqaG+zdvbU5QW4OpD+aGDKba+zqFG3Gc60jKOx
-rE9jmHREmfEEd1uz7RjMaDLka0NPs89B33Ke4qjAuIAeaNRbJJ9214O/QcQLhcS7pwbzPoodhpJi
-bidI3PHgfs0gMF1VtiDr0Xm6PkfajaNFJUkfmCDRlJzijfgFyiO4eISegb5cy+03BefRaFvVPXay
-vjTCV9hktdhxPmHCPlVjAkyyMpq1xCJGCE8laH5WMME2GwPWfU+wDSX3Eto3oGaYXDhRUbyNne/d
-9jK19GogGHTjZ2y/Wc0kWiJLHdeEkNZIM+M82Ec+Kw1+RhOx4DHEBhAPbR8tcpad9TCacccuyKlA
-3WOKwuGozDF+LAfYESu7A2s42BHAhCIshu8ix+NexAAlMLmb6CnvJnvNLjrdBJMDtAbDC1d1MS4O
-POEFi2sgBFeFwlSBjwnqRQdYYIIuZzEXg0LQvUMVM0EsLbDD8SWwDPkElLcCrGmFLsYbEzdDT6eY
-wZmQNXqFfsge0cBR+dBQ55OhaDPqYCANzmWL4yO9YTnu7ZPcpBhhH0wW1zYetwtvHCHYB54ln2Kw
-RBa+U4X9wKYssdqnXZvz+6CevEVp5T5bpU+GrepgS60CiQ91V3ijTE5iQJb3nmMI+3SesSoduD5Q
-V4jElxKjNkzpdTFNDDDEWEfpsdE1AJomSrz5GnuWfR+IGDNVkmM4OSbCGeZD0lIBu2q5bDc59plk
-U5Tc2uA+84aao5aOLVyEumX6ng8VMB41VkcxJJV946VNQgTOZgh/KMIRBnHOQjDeBlSi3/gsTsPK
-EliWLkFYMjgIVZE9+705xZupLRgnQtkPYkAgTcPB1W/dA6MyYqNi8sZ647T+DCTIbHyFJ8405Mqe
-O7JqU2HFN11pNUSEEUtjtsFE7JdNPa2Js1yElXhQhruN0HQwU5HIpjaAYUq1DVocBNsa/SI/UjYt
-u51wTdxqpqHwHWBg7akEaMfUJGzjEPnBecO/H2IHADo9lwYuCKsIt1ZchppL05pulerH7gSBtuv2
-EQ3Sd3Vm1f4hS3LinyNmrDsOVuZ3W1X6G4hiMcBjDCBu+nYI9pKDPbH4qRXpy0D1253PdPXNCAPO
-6MM0Dkht46BItHlTdUoXs/WE72GJL0P8eEIRpd6pbk1vX7FZiLgf4jw7jBy9gVoUZb9Bsm6CDT4g
-7IbmXJkYbpOKW09K6oNBLWBtwhLBAqilUlcNzNd0VZSWTwJryRi3fGRK66o8CddWM4l7AbH1JUVV
-xOcECtylucvU9dqvx+IKbCXcwGJI4KYgaYbJrrAy95YnGZu5tpHqKvQd8tlU9bGjYhRfDhcl1W93
-Iz1vLvsdF/aobOiyWEPI9pBHLFGNG7mwHHLqSNutmxEv2NK7rS7T0O8f7bwLcKJQT3pWGaN6862k
-I4cgay6UwnYMY8V2sCU8icEdyNM8QFgIRa/vYwo/WQ4wetBvFU7FU0+RFba2OOdxP808vdGqBdZE
-qFvAOVSkaJ2ykjF80D4wXQyms8sCE5X8dHwPwUC6jrnfupZVgTHfMxGPabzK6BbtfWsTu0Ny6zZx
-26Fvp7G/cnITDkksMmb2GPPezftASnlUS5Z7Ws8CwF88KNydmYTZvQlpwuJKhyR5MrbZZP5FH+iP
-s/PleIBPxDEVuH1POBxmfjweQLyjmMSemDANjbMxdUoZStHHu5/Pzs2FhPyRXP/ryyCjcOCh2Mik
-L/Pj6ByUEisskNAN1pBD6+HC7IPZ2BZwB9aV24iLyu6yXVgpIl6jP+4qms2vGVfYVz9/I8g2P30f
-y9fxYYRvl2JoGWpFmwhdeDU6qt4ra7ktVYax0uMxA5lw5WTI0g4Jt+3PX/3PvmxX0aRp0tpE4O5T
-F4GLn2ByMp77nQfCpLWomJdjU/zFl/2jaPPrT/rxVT5RqesiQopRXbTRQdCdOJU7bUXQ9bsiwuH7
-8w8kl3f86XdFj4AXQ0qDgZ7z6RPhSvXDaMJhSNqRi7sbueVZMRFCT6LCqp47QJPmsYAg/Qx3adwM
-LUZklRaZuU8G0z4vyU6qlfSBS0Wg9A7mLA2GKKb1XBYJe1+DvRhshlh5VwFMyr9qw/3DD8KWWrDI
-sxnRCpXrk3IEJYlpW+zhIYbMtHJAqWyNKDKPP/+W/vRVIJm7juJ7ctWnIzhg3yEsNc02pS25vbSV
-7WCSOH8h1v3hZ+ezSGRHye7Fweu0vIsPl3YAXm6yaNvZGD2pzzCkoiga8MWOvhhPf/6Bljf8w6/O
-S9Hwxa0slODUtcwcPrwUu2chRBQlmwr+yOsMnPXOcQI4SUAS4YUWxkngAfr5+Yv+2edz3kvPkFd5
-/U+fr0b8cCFbxlQAhtVO+jaZSJnjgjVIff/9l3It9A3sqw42jEUI/PD5HEL0zBu4LIbZai9RmbJ1
-0WtyoAn2h5+/1B+vDWVarMLsOWHEafvTtSFmum5LsumbcpiLvdekv9SWm//FuvPH34vrwbS50tmA
-L9fIj5+nsXCL2guCtbTVdE+DxUzg1Q7PNEWVZHxKKBczUuRf/GB/9tE+vuqnj+a7UyHs8L3DoZ8P
-fRm1+wLO4+HnX+CPIjmrnalMhfbLHE0tI7hP16IzLmhRZg0bQ3fIVbjeoQmN+TqzS3lK/MRnjjP4
-1sEOW//bz1/6zz4gBcxaoPRzmP+8eoxzQ+fYOPJQc12Ey04mZ9R7hJv/xaugOoOgXQwH5ucPGHfs
-s+BAbpTsweawLu7M5TD581f54xOa7xEvhKBPgeyT4316QheKHBmnVmI+BTvZTTUUgWIPpdqWobsk
-EELZqXU2hUDm1w0WORboSvgrm2yOBApVltVfvKPlovxxkeENeXiv6X/A+60/vaE+gIJTzTZvaK5s
-7HvVfJ07tFtRO+oKqBm99xdX0p/cJVIIrBuWIwXlRJ+eZWFr20avBrgzqiWm15oSvhO52IPwFOfz
-uNRnvUIF/oub84/rmmLJFtgJJPenKZar7MNi0xqOJUxqFKkB1mpHp9t89GGQOSvmtdL9i4vpfaP1
-6VuVrABSLo8IBIJPmwOPaKWCGBFvCtUhZGNNx4TdGLeVIxS1f7gLGbmZmNqaQo4g0Gfvgiu/QPTj
-DLsHP0qR3Oj5+/er7z+KwwfFYek24Rr+93alq+hb94//+9muxJ/8JjaIL5bCjkSTlWUz0VmW8X8C
-RW0XHYIWeB6MAB/ZXbJI/C42wBq1LTxJyBAOKyQLaFMgm/73fxmm+MJ/TDg8zJcmE/Zvf0drcO1l
-Kfp4cdGrshwkWJAtnmqe+2nFb8raALTGcC9I6Y47gp/XFzMg82JTylYcfnWfJKNj32ce9gmOweVU
-AXdXbL4MakLuW8vmXB+HBpojxgUj3RlJ518qjjDuGodT8Ab8E1B55gcLf711fHtHDFp+N3I2Rodo
-NC2iaFT3GBSTOM01C6cbbPqcHcrKKs3I3Ee0c+BPxCnzS05C8jsksfluSXxSZTpnE8VS2glvSkmP
-Nca9qaWSrwHyeVBQUekviXVbHTp8g2AnmDVc55MSL6YTR2ptlIV9kcmWMj4cLPy5Eo7RrAr8Ma/E
-N7y3VqmS8Sy8PepBG8O7K/Omne84oNW4KtJA6kM3dyAQcyb9j5wPkUdAV7jpSdgrySwa2ICzzbCe
-Tacc4hFkg7b0n2YBxxisG4rsBqq/+91gWPfcu7r1t6OpMboMlCQma6hxUbsBwlw/TLrs/K1l1FQf
-gPsoEcKL1rm3AP1fWVPRpYfBoTwAKF652HkGOd60Lc3Om5xBcbaCxKLlGlhj8j1urfjWGWDdrrXR
-YHX2BcMUqBgJrqICxs5DPfTLcEzHgloEOwziTc51mmIxQC1flWPvXBJDA8nKU7p9SzN2dwxewmTY
-BQQ+78LIFsa6o8+FecwUSHNVOwb5wKxyrMuYOTGzgtKXXC5uYpFPHKvgrUiAQK3aLJr8TZRTtrwr
-5Vw/NlbVl2eQn0V4IJgGNs42bPyZqTAQIFL4uDd4MBg5W5VLgaYDh+yiJv8YXDTouc0eT1e3jttS
-BQeYP/qaKoj0VXiD9Qa8ksrX0Qz9Z68n+7ox8qij80CD/qubgqG8YfrRrUP6acItQ6QLhauS14Dg
-iW3p2v0+AvrJd5rgEiCroAK76bol+WwTB0s/J5eV1WXEh+fw3i0zZW16KZPXecxply5JgZP/aR7H
-IQZahSNambsskeb9NFUs135CGGIgekDkYi7TM8nAkMsyAWvYoME1N9gplDxwHYC308NSj6IwWSHs
-S36iVRd5RGwyMTGnEZlTj9sw0yGBxAlpcZ9RDAgJMx8ZwedDi49dW1V3nmfOJAl7MWle6/c67SkE
-GUaigpbtPppyda7xxxYOHdxYmajjZjRj3DLuCRu8XEthN4JO883tw/ZyQZt2y5A8uy7MhWoS6KXx
-217Kv4NoKQJPoqUUvLe4UDdGvZSF2+/F4eDgwTqgQFAonr6Xi1dLz3gA6KXZJ+N7/bg1Ave0W/00
-YOTfpM0wPJFcQ4rw3+vLO/rLr0eYrsUBpQY/RZc5Jbl1g9rz9r0CPc1s8ZWqVorR3feS9Pq9MB1h
-zvrmGibcfq294ei9l6tHHAbv8PaVjGlxZl9N70Xsqkv5SQTEvWlNhJUuB7X0tjuSWqPVOC517m7l
-VQ/yveQdCx+F7/l7+TslsCQlGKrQruLALfgFLA7U2PK9Nj58r5B3ljZ5571YHuoT6xw8SGBDXa2a
-bkvefkbFrExHXCeaaqNjSaixONgEks+JjVU0RwQT/3rh6u6rkWAa2k5tEqA7Rq6zLeo8O7ejFEUP
-gS27X4aGjMKwMo57F5MbiU90G2KDKr83QD9L/Gjp/BinvfWc1mk2bfzIT1/DBHLXVpEsqlZ1GU5n
-IVVz6CxNZT4VnGxwunpJ89W2O8Wt25etWIfSUuUqLkb5NKWBf9oQZLkDSRTfxmkUUf9G8+lixPC7
-Zp0bXXbaelnYrWcKxag6ztV4HRDOEesuNrpzq2f/+hgZaXhe6IFq0ViQ2d83dowe18NNeXZjHgjb
-2auJGuBxwUVih1ZzaKFPKgC6w3jr9Nw066RGxqI4VaEtSxANN0jzVbKOMzJet90g7L0j+ZlBQbrc
-Gsh9tCy2g1+9IVKuEgdvOCRspI6rQEPV21I5ZbUbSUd1ulkMtQ3Z2i46J8/id0fZzSac+7JsH9se
-zxL3hcKIg3lQrbDCmHdC++mVcgno0b2BcXVlzrW6FOZ4YtDPxAeZATwxhc5gSzt9tnj+FIgD3HTC
-fOzcTD8MJgcqQsQpJQOkuYA1DtTVM4pRhAdts+5O+qzDW1lQ1RWu7MCubIhVE2RGQvej3jrW0hzT
-z0xZ0NFZPsC9Fs4T17+XnsSD31x3WJAEbDwIT5s+8icWqXEiwosVNF87lczrvVk1cbjukWO4lxtc
-UWssDTTZ0FFQbFygPzXFxyM3EBE157uXYkrelu5op2uaDsm5YWSFgENW7ykhQpbgdsNrBIMCLsZO
-dmlBvCMcwnM6oeCGVFjCHywC5AAbXYdfCjFlgehpv4JrQOM5BdG+MbwCCqIKV9Fui6bVDdRVlFzv
-5kHVg2luAj8DW1DjbmwhxPTE/FOPfUYxTDw4Pbc19GqmS+UrP6PbQ9XzzIfYqFu9qesEQMyYCBfR
-gF4zKnUArMXFM0t/xaPBjrrX2st7xaKSNneEf7tsXUmL01cwe4MAlUFka5N0sjolehcTmOsdO9gB
-a8VqGnm+d2cSg6CjhtkzREVbCbEmhjZfeIi4LaY+o3rmGR5g1HZMfY3WN1TbZF42Ql2QecaGFCyD
-hJzMzwPaHmsNRt2p26q8R9eGzsWzbQpH8C1Fa6KNsZhDW7XG1HgqJvy262LI8UAYM8RPqIRBg3Tb
-lGS1vNQvAF46GSR5PQJiWTkNxHJ6M0MG+4PLd7lGsIqvUPXqHYU9abnpwQWPO+6XZtjyzmPqnJye
-RYZZA3k8Zg/ma+PLJTLL10oEs6vYF1gcaR/C0Gge+5DMTpq7nPZGpxN3jVmD63YjoB2byq26i1FS
-8cHHSRyP52rbnjZ8aTlYggB7g+7QfU1yv0jejbhBRi7oyzSCotzUZpWQJ7Eblkgp1XBdJsKivZtM
-tD510etbPNJFWu7YnrGf0jIpXijkYWM66ZRIJe+pnHn+FjO1NbHZX5PoGox1yb422CifjC8m3jLd
-TPh6iH0LgogbEComU7HR9tamHEKwAu4sgcShdGOr60uHSvoI9qBwc/cCYyi2spEFn8dLGVNCBzJk
-FXjEHjHWmOkz4yFK7TFIVCdGb5gACAfsJqsyY0VaUU4uXiZDMYTopjq4JV2O6Y2OpPIGocgMtgkl
-S/bKwi5MT7SdzktvemzuwjFaBOVeB+pUN9NwJtIUhH1TFXIPCgMtWUI+g50hHSy5bbEUp83WcrlE
-OMZfLZaUb1nf9/beMkVnrD29BP3wjeZcJn6WvOVZ7JT8XpRCbni6VecwNzN1oI4jZt/Yg9uhhw4L
-qA9sUW2lclnHwxlQzBrshb0fu4jSXnweCl6e2VBjaHSCzXEcOtWRcsG4wqfn4d6u+6HeYj9iiQpl
-pb/3UduJHTldJ1u3oxRPQiVgUook0AFc9DZ8DjWN6juH7W66Mym3w40MW0nuQcbBgHIj2mB4xzNJ
-CwWP9iVsUvOXxpXs8V0cUTVnCRH41HLjxdi09Nrjn/Dzlsec6nFoDYNXfhdk/Ad40RjDN0lfZfCe
-dddVnHvy7kUlmoNQZ4ikWQOXyV6c2rKAqNixvC/ypZMEZ5ei2U3UXH+hnVm8kw4784nJpVdDnQXX
-uSqyKj/R7Plg4aRw6twUG9GyiIxcCeSeubmMEG+WYMmp9zJolbsqCr1AlJjv8ESMKte6Jp8w8WP2
-rbFz/C7f240UAGCi9p+q03+mCh+mCsvc01PMlP79XOGmyN/+8f/yiOnmd4S2djq+/fd//f53/xwu
-ON4XRTCGSSqzPwRfizHUP4cLrvuFGQFzBUbUzPqZPfxruKC+YG9E+GF+gAYk3nNSv08XLApQ2IYx
-xCPCxGnX/DvTBVOKT+MFekUYVriudrXkHwaVP07KdNvX+WzJZIOB97su4+LoRmV3HCJrya73wKva
-WIlz2olO7VRa26w3NYs1xhIKjcynvCrbJ4GvodhQlgpaxA77Y5CHzskM8Rh4aW9Nu9I4Ai7KKAfr
-kvOeLTmjRoNTGxxxefDciFWxg873NZJ1uSbb433jedJvtV1YT00UlzsU4eIY1dW0x/foP8Z8EsKJ
-gXCW4Hf7tXRkw6TByVloBfnlHiH+GXMVEItYgeVEE9zjZcjTjQYs9i3rzOHKr/LGXcFcj59x8Q87
-g83wQ+TKgSysZkfCZ7esu5qiNBBRQU/o2DehuyWmumCOCMrX08lLCdsEp5YYHhGJBlAmZERx4Ihy
-O3FQBic1nxSUHZLzToIbM46PY+HYa6fV2QvlGL1zoNGkeeEcnHVbapbVYy+7alghZJ2TOWn2zGuJ
-3nR8K6GzhFZbz/f3BNQs50XQWvE2u4F74VUcI7bMD42BvoOmeei6rHjKDeY/KXUdOxNf0SbECbpz
-YVOzGRTOdSU0vvzWj+g8K9tDEeuE8DTZCTfAqOYWvb8LGXdaK3ZQ4S8JKZE3fGHGVx7NFIzURIWZ
-ICxVp358yeMR5IYymkPmAqvKCtIubeiGJ7DmLmGV/H/qzmS5bSxLw6/iqD0cwMXcUZURzXkQNcuS
-vEFQEhPzPONtOnpdT5Ev1h9EK9t0lrOyU15kc2NLpMCLC+AO55z/+2+gI2w6SvtV9PHUz5RUH0BT
-xWtTm8C4y+c5ZuT3vZRtJJMyo5zJxc5BdCfsP6G7YG6p13Rr1ukYiLfJlR7yptSC2qLsYOKa4RhM
-75grvTBZFBpevs5Ukcq91WZwqeKNU5bKlZorzwUBomWkBdcUkeRLuzKVZYvpwLwv42gK8T6YE9tN
-yFabEQcww1ni4erQwDah9qvP42UKGYrQQuQqSxPh6qKkPgdpKsZ3tMOyFKhOXudgG9KqW6T+YnSw
-Xdt6ru8SKdNX7HnsezojfAiFTamwrkhrDx3YHExUw8XCSXSUNbCHBw5jcQc0SHLJk8UPcutWMO4w
-ResLlu0qzrSXgdY468x1uzsR5+ZSR8Rw7kaR/Qk37qSFYFw250bqi02tDNKnIemrc1sJCK4E/Wcj
-roDq2x48HLcu1YecR2mR9Zq4UK0QZJKSefkUdWe5tlGLPWpOMwdKO/MqpSDmhQoXQZZhXlH60G+B
-wTmspeJ8nSVNdyE0KXsQSX7bEy+/rKy6Edk0DrRSui3A4/TaQq7cYIuZiwqXZlTbEfI0pwVWwhu/
-u5Mq516CQPtICas1x5anXWBTASxUR/utGSN90oeyhsKHR3YENr6CU+V0BBMeCYYuH7SwttvLzqtM
-u9bB77O4WISiQ/EN1+TMauyRbskHWwEVk+pOeI0hjneEQYJMfTxCMkdO42u0rUxH7mRlwfcsQIjK
-LhDJcBSku6HSHkIc6mblKIhPQ0BRLTEYambGP2aT6OP0FxnonHTXzM4D07M3ZusjUY+7CKi/ZgTO
-Gds0qUBmCUt30kZsNzKhSz+HMdJuSg7KO6jQ1apCE1oK4jHA9FcDtNpNF6gNPmqmdCXHZr0KyzYm
-HoLHANFSIm8tyEQzEQ3IsIIl4UQGCgTjMIpvUI1BJ3RCdt1GGDc3FED51IY48Kih0eVnQ+P5y6CT
-sfAzS3Pe5Xo1wyURmU3SeBdmoD0Fia3j4+gOS2vwYqqrKv1z5GuFPivdgk019I+ZwgmDOfez9iIz
-MJHkljBw0Mx91vBZOewxEdzxIGkr3+uDS6VRzIVEVeBCfiXmYr13HcZAW9ltQ7R97fsUhyNYNlyk
-AAmLPp5RNoeR190jrArWIFbCcsGS132xCo3qRFfXGTLF0AtAguDj+kmJZvncFRrGyw5YQ5jqQAfW
-4dByTIDmyUyzub5uHQPGBJyJ+IyI+q3mROg7tQ5j5hb7IKi8FBsCLOUWGqRhVRYlEva21+7QhY48
-iwTugAkA/Q47rGzTERZZYWwHQcDTs2mjckRVj/MNXArvGpshCJpDhrbdNKkYlIsecz+thU2L0zgo
-grLlbnLz3LsHJwCbTI7reHl8IsKWjZdWYprhhiqnJA8jllQFoEvVSDalYJzTPzaRpQjc07QuHsIU
-DEKAEukFgAptwuob/UyBGE2OkE6S/VdR25eprN3VZiVlM/xwKbMLQMtiN6LdyT5PKje+wHewjeNI
-Xbw+CW1Wdk9tDnU0dWFDhcIjDv2KYZZlSEcuw9StZYz/c/zGWYYqVdta4fHLaDRlDFsgZlTRjX+F
-DRBIqxxjGh76AEBTajbSFvoC54kI7hZSG3+RxZgBJ8BI4qJKplyb5CaJ/XRq1Kn82Fg2XkeZIsFP
-7HR17lEGKs8F8HHCwTGfb/MYAmYhEzibNNRqpYticNqZaQowliWC5G0siHlOtVpFRGkDjjFxTIJb
-gx0zk7LfLkRkW5eGp0Dj92JPmndFh2N4QD9tVXxm2KjVEpXXzjDc6KAN0TOxz6BAwClXmeZ5ysR0
-83QaD6H8eWC3sukbVcKsq6838qBCp1RNtBKZE5pXsESLZgJlJHrQgbdQxuhqKVE4OW0fDEjYn0yP
-nXTR+5JMlLeV8nU0mOa6UCX/ogbLbcyzXK0eS/YwVIeClt2Q8x/MqdwGCR6Wg1lf2y1Fe8u4ldB4
-E8acuXxsplQE8CZSqtoHU+3bJ6Xq7U098jeJaT5CTh8u/aaB91E6FIVHXJr7fGjY5AWBed16Qg5A
-Y3veskgDd+3w1LGk8mV1W8WKtcviwKSUOqAOZm6pNeoXy3LW7FQzaQUkIDirNVGUXCcBarPS1DGG
-VOhL0CTRp6a3lanQvXqnlJm1cT3XWSKZz6qZRjUgivAIgiUpf8qO5BDZSVTjVBUwTypBZj8NgVti
-IB4X9gaeCUmPKqxBvKYNNqQLwtnlRmmL9oKHvrtxapF9auSaaTgRHYvYDp/5wGX4meG1jMMORTtI
-NBNpU5dFiqKRefp80AdWfYM2bJBqW5fcc/2u7wCEKCnyJKSEIzHSETKVyYQ40g1ARPlTDb21nXB6
-0MBIeYxmZ8yqWk3ewG0adxmAXyR4QwU6KvLezl8MrcMTpQmthVmr6GcyoQQ7hbpShUVZzEpX1lg5
-z9Nele740X22rUh9YBtblDOVeOMLlcRgIEmgW/cI0Y1bbk9jl5spsSwH3BB2qOZVjG5xA7Gzv6kt
-u0coKDfZeqy7usdfy/okoXJ/GXcXFrFx1QgZQhSmkpR4wVQfHO8JpgfbVxJB2KxoRZTdZipS0A2p
-KWlXW348OoCW5ZPTJeFZH6HYaHKJq1aX6VOjciUHinl3EfQna+Q95epToznSpmI0m6pDIdYUAZmL
-oTPshQXMb0cs1zyYowS1s0ejsD7hGiQtJb1BHXZTTbbsawe/xhUgQfuiJVfBmKkFG1WzWGNaFF4Y
-owRmIrI4xgamNeXL3HApSYVAWqzcmuiu1hrRuQnMXuCfi9zGP9Mjd99wrDNuLmNlh07Fjryyl2aQ
-wgYYQsi5BDWqqctUP0ox3SWODP5UYbW4TSE7T3VZkS4dVgPTIbOwAFQkyEhK1V4pQsSrXm6tdYz1
-WWDXD3R9wRyaRrvYMIkyYyQczhjlpXltRebGrxJlRQjsCRWCewUqCK280sRrhKsNK/LOvKLqX8sn
-uazhcqGK7MzxiKUUbdrOPZMFYaQn5UKPne5mcHqk95HTbQ0EF3eloomZgprgGmxQTrqG8ZolMZHQ
-1HYGjKTJdDiV1ZyRQsX6IXWf2pFcIPvCAnMBPXHawMc89z2tYIUr4Ak4DpnPkG0j+ufClWespDtE
-QmwiKtE7zFAC58MQylo0SMlcloNulYu2vNAp754NZjK85EUhVortthtd18TCMmqJFZIt7Xx0rD+P
-GzuPwHiX8oBk7X3eDoCijHJtZJifxAIwMlzC3t0jL6c7O8aswpFtRF0WzjW4kRTriCDhVvb8asWA
-AM4mdmp12wyIApbCYKjeprZmf47gYUMsEETwKSiOs2VVSt5TEI5QGhFQk5t4o78v+CymdEmH2Uhm
-pzkM1YCllWqbGME5QA3HO1HrNowl6orAOzoAQYA6USykCqaa2XhcufatZMkBNlt2l54lFmTfmVnZ
-1jqsNfRtCQi0T2Vlaociq0d7Hqrol5lQ03lHsckmEmTJpnbQaN2isJRRDSUy+VDbnqinjM59uqgY
-bdUJZfXdZ2Kr4T4124ZBLqaDip75bJI3UnOjpGm3a3JdbAY/le6alKBATd7sWiPRwbIQD3Mfv9PA
-OW8qJz9vUVHNRdGAHwzBns594ZR49tloo6aU5nefe69pH920j2+IwAcb/NydG1shczohdaF+8tCx
-hxxP1md9AcJ4SrCQhLWLY9witvP6DK2iNe/IxRZT7EeokDQaX70s0X5YLCb7FCWgHpJpQf9EFMMN
-riBmZ4hjFAtacC8JtEjWYN1iWuR8BhkZYUEnl/jvmNkFWgxvleTRTRnpyjbxEEH7dkviT7cgDGVq
-LkiCR/mZQ7KB7LnduSj79Sq/bUEmUQ3tNSXl6Fm38GoJaIdDsf+qiGSk3iHB0otObburQAKDNsGm
-071JPSe8dfqqeekYl1HIYeIpQyzAFIXJQ0LFMWRh8sBAQkMGZhPSMNR8LBAC4Z4WKmncsBkNu6e+
-dTFQMWuCBx1I7zWWZhue1sybS3Zqu1PPEIhB8jqTX1hkFystB6idsYJn56QLn8oC1CZXbunIrFsU
-R3wiQeTtGtRUM7QQ3kax4dj7ZbOWa50UUZR1eNTqubbgJlNg8wqsNXiuisuO0NcyKyr3kmph4U8d
-Cvl5AvX6yYd+u2bJrQI4JThMdt9q83PgbN3CUP3iqZYqrMgDxzp4qYcBXt9jbWfKEXNnU/jKObsu
-jLU6kNawRmvDT2CBK2Y/DbXE33atai+1qI8Q7HgzEFxI1PrM3pKEECQytCq5dgs5rxaZppNjL9i4
-YInUzkMvla5TjbygXHUYDJLl3xJU6icthexV7N4yfl1VkmgnEohW3ScgYVC6hyqkp+jcN9yXuIzu
-etHPkJTIOzmp8hlm2cWu1gr1sfUdgYcM7q115RgT1HfXbemtpQy3eepKNogLJzYTjyS8K/wlFrGE
-C0/hP7edsnNT74J9M1nQEGNZmHxQa6lowyTPMbR7D1v1QSbXAiRmDFAvArt9zBxzW2SQSHue2CWQ
-XGuaeH2/EyXAgEwjMBEgRI3AOxYiHJahLvvzIEn7YVZQ4lG4trFA3Vye61Xaz4HSautIq3DVteL8
-s5IJsWitqtyVhuOQtnEhrDhqoa0G/BxcCO2N/DPs1Oycu5ZRSgNT03jucCfILW9qKQF7qHhmfVWo
-TXJjkWWZ59iSTsJBB1ehDbdDo2xN/BERDzZswyiNRsbaatuwcR4G30IR6Eod1QY1jkvZgO2wFuD8
-2ZUD69bEJEUew68pCjajngqU3kXqd1WNThkNa5iN37TOzKb8olp6BXwTKVXqF+K36bnqZd2y89pi
-mcIRW4SQaqZsB9WtGTn9LlPd8pzyg4Y8ptWYN0Vj1NvQMzFMlzvz2aTEGW8CoWCoAovUSAGlkpGL
-lr2W+QtbG4wnSYEiS2lWROGM0MnPycEGTSnr7FK2Wf+Gxr2qeWLeN82wjhLPQBcpsMWM8ypGaxYo
-51omIX8UWTaPW9ta9b1R3UlOpy5qSbWe4w7IYJz39kUnqhBITkiqk93dQe5UqjbwNyx3EZqpeYWB
-zUa3Uv2McnbyDVEcd8vIC9RHWUn8eR/qbJf7foTkUw8Apb/SZgiZw0cSUNEC1xb3ElGgtWNLEs0V
-3w0vm7R1nju1ki4JearztBX2Fdg+9RJmar4wWKWuIgcJ2WDoVIQZVbhxfO0xRSG2pJaAGqyu9Q6B
-W1jAs63+mkozbqQoQ3pE4lHd5xY916HgW2O7FhI/kYsbtzeQOIQhDUqxBVOCPttZGalzbzBJzDCe
-nUkeSnskdHU/QyE1qrOsYJrKdnERCSnj2R9aAQpF67EddoMhnZHgzaZBkmFa63mJQoCuxy5ZGS29
-whxbJlZUuApTxYoLC06iaTw8BaRZ1wGVSzvbaORV0OXS1ld7by6MRJ6TEGu3/eC2a8LMJcImVq8x
-6MQVtPPhMyLslGGsSK6HMehcZ32HjjsobhEc54vUcpds0YOt1wIEJ0qlLinMqLl3YWWx/mzgrEg1
-PYI5tlmheKb4fmNmGcFFRFCwRzrzri8GwLWx58Kv1sDGY+03ejzi19wwE0K4RCU9qVzVvceY2rox
-JKmhWKyGkJ9CKbnApcc/DyKtbSfgRcQ6cdq0OFYl/7/MKX1p9Gxf7eeviZ2r+lD014eyjqryp78/
-d/+B8/X47iUAuOo2/XMf+v0DfUkp3fbZ4R9/e05rbDlogeunydfZJpVUzkmC6rVFr839vQNEe9JV
-9QtHHktV1dfXmBWKUEm+vaGrH6na5mWOIgpex6/6qm++d/a/f2LHbvz9z5y0ff9CSebMLyvmuerr
-kxeQAklV/ZHz/+YYX50/yBCMPyxSQoJK3vF12g2a+pHyfVO1j50hy8dS479SN9iWoNr8nd2gftRV
-KosRKRyvNkf8+m6gEBrOCRlC0h+vr2PH/4W6YSwD/4NPw/fvBsX+CLTa0ORR1DO+vu0G9SPlqgaf
-UY/v/wXvBhaw774bzI8jRYdu4J/X1zd3g/VRp6wdecVfthvGfPt7u0GVPyLbQdrFzf71w6ArHwVK
-OXR69vEu+D8MjX/gifl1iplSu/vyOrn4Byr2fjsHfe8Db6Prb9//MrKOlQrMHSefG6ea41cfXie9
-8eefTh6Vv4+N/+rN15+ZCl+/5suffzm/337zyXe9ndTbL1f+odgXz17/+kb/pZXn+5gp6j+fi8PX
-w76hMUT/byv+8beTNn51zX/3oNHeTffl24HG/mADwXV+94Hj/ZAm3xxZU35Akyd777TU5Cgme2+D
-F4cX+j768K9mWFsZFxjv/YZ5mf3yz8Kv0g83e3Z1bwc89jmOwW+/OK51/szVXKb+L/91ejHFKz/4
-vU3fjagy75f/Pmk0BTQ/otG7PT1C6oOamA8v9E0dvXXE2DOMrSP07P0n8OuXvB3seHQWdW+/+PP9
-DsntlOMmdGWU97231Rx3/8s/n04KqwQyvh/wfF4eimQfP9XPp5cUntwP6O1rn0t5+LDZJwe/OP2C
-41r1vR0zfsGSW5Iv4ZY5T4vqZGhkRSwoIvux3/LtjXmcWd/7HeNQsP8wZRNV+MnphUYt+wPGhBue
-2g+Xe+rM3zrk9cY/Lpbf3fpD4frZSd+zGqAQ7919f5s+0zMww94ONbZaxRuL1cx7W/19bvuvE/6f
-m013XMLyw5J5xD9t93FN/t52f1/A+c52X6e0OD65+8ZtxI94hH6/NvSd7R7Hx+8SNN957Onh20Hd
-Vo2RAfDv7r9/tfL76WSJOB+bdrqU/bcfYEU6Hvg5olk//Q8AAAD//w==</cx:binary>
+                <cx:binary>3HvZct24luWvOPzcdAIEQAA3bt4HkEezZFuy5eGFIUtKgAM4AARJ8Hf6U/rHeh87nWUd+9qVFR0d
+UXUiHLaEQ2LY09prwf+8X/9x3z7euWerbTv/j/v19+dmmoZ//PabvzeP9s6/sNW9633/x/Tivre/
+9X/8Ud0//vbg7paq07+lCNPf7s2dmx7X5//6J7xNP/YX/f3dVPXd6/Do4vWjD+3kfzL2w6Fn933o
+pv3jGt70+3Pl7rbTi+fP7h5s1RWVn1x1P+Hfn1+fPX/22E3VFN/E4fH350/Gnz/77fDl3y3kWQtr
+ncIDPJuk6QuJhEAIp/LL5/mztu/013FKXmCZcSJT9OVDvk5+dWfhBddV/+zh8dnZXfdYuf7r2I8W
+9nlZdw8P7tF72NPnv79//slmvuz1B8dStc+fVb7PvxxY3u+3oq4/7/23pwb51z8PfgGncfCbb2x2
+eHS/GvrPmuzm1c9O5u+ajLxghMhM7s22/+ADk2UvslSITKA/LSq+Tv7FZDf/53/3z17dhfa/YK5v
+nz0w1X6P/wNMdXn89bR+5MR/01RYvpBYZBRSxo9NRV5IwjL4DvkyfhBdl1V3558dP7q7yv9sWT+O
+radPH5hrv8//Aea6yX92Ln/TXCl/waQUYC746/PnILLEC0axSBH7sblu7rrp7ll+N905MNzPFvZj
+gx0+f2Cy/V7/m5lsn6i/rVVPlv93axVGL8jnD0qf2oWRF1/KE8++hBGMf5n1S8bbV9Kfr+TH9vj6
+3JNVfynM/90q0PXN1yP5f5DWCHqBiGSphMryLVhg+EWKM0lg8Id22IOFY3fXAWB46J/dhAPneOLu
+X6DVD/HCwSuePAaQAXb6/9Vg/x5O/IW8CkgJu8+Q7RtE8fPRr1Dk4NEn0fRk51/te/rw+/OUCwy2
++QsK7l/yJCJ+DNu+efTxzk8ADyl6ITOUplxmGUGCSfr82fL4ZYi+EEKSFBFOGGGYZc+fdb2bzB5V
+ohc8Aw8BiEIzShhjz5/5PnwZIy9IxjIiOEklhlSb/YWiX/Vt1H3318H8+fOzLthXfdVN/vfnMP/w
+5Vv7xWYMSc6JgArKESIpZ7Dr4f7uGoA6fBn/rxiGueYjG3PZeLYbzbwVosw2KH5/Hc4PZoHlPpmF
+8TTjGKWYEJzuS8DTWbKpSkvT0i1PyESOMMVGWeyqwui4FT+f6nBDMBVPob5IjrngNOVPp2pFmq3p
+rLe8DKM572XXHbU9adXPZ9m/5dtj289CU0zBQoDu4fN0FopjY7nHMZ+0iS/dmvIzN7c+RzG1L+vB
+2rciTTEgvr95ipJnlEsKBZSCCzydtI+OOD/QNe+TadjN2Dk108m+xlPSnv58qhQw8OEGoZLjNEMw
+WYoP/WLYMrdJnsScd3Mn86pp/VvGtsYqFoMQFyWf+R+4Gfz7TlhilGB+uYyWD4viVeMTpbfavmrr
+WN6yqZt61cuGN2pzovfFaLP0dfQGd7vg+cAUcdUg1IDE+qVJ+dKj/MDxMATRwT4IgMcMC46pJPDn
+6ZnRPqm7ifM1XxYUSjXjLWbvDenJ9NbpRl9jMXutjGfjddMsPb3AltTVccbmtT6idTbfuWbY7rWX
+WhRj7NrLbSrXqqgHkrlfONU+Cp46FWR+8CkqRQa+yw7sm4TGVggPa17rrTnLGpKqZOnsB08qlqpl
+mMVZHNJSddW87n5u7+8DlIChEaVyH6OCAAD4Ng0k45gsES9r7ibxcdxm+3bCAb1s+hDyvz1TilKW
+ZVQQgTJxsEntmZ0qmW55t9ZZowwiZdHHehrURuPjz+f6PhcQylPIcFlKeYYRerorzdFq+2EDJ15j
+u5vc+oDwqIEe+FlU4v1bDswmIUmnWIh9m5/tV/FNCtVNHEm9hTkvE1OqdRaTqq0mqtXRnlVh63e8
+Ldtdimp6KYloH5mN+BdZD3+fkKCjhU4og+wHdWOPLL5dRNzmRffjNOeTGJJF2Q2V5ywZw9G28ebI
+llld2FJnu4AXoqo06c5og4xVC13JR2JEliPn+5NRdPbc9DoZ1VQ6djHhTgy/cPMfWGWfMxkXTEBs
+in3q+ea8LDOW9G0ZcqCQglojhfVZTk5+bpYfzcIRhqpLhKQZ33v8N7PoZU47E+s5X009qaGvcc76
+iH5x7t+nFwr1WzDMU8IowQd7aSJp+CTJklfL0F221OOiStyoFt+OhQ1refTzXZHPkfjU2yiFpMwz
+hvEeWRzED1olb+jqUN6Mg7Y5kU0zKpqN/pbErq92NfZpptK+dTwn6zS+MaEdZ0UZgfTXBCneEWPW
+sKtDZj5lvjayWMKIPmxJh0oVt3Vd8gbX4RYyQXI9rdK9S8NQwwOjDyeNDPQxhrnNlG06aY9Ku7Ve
+yYilyznN3KKggPm+KCVqXzVhrZgaOz98SPooTB7n2b+B8riaHA09ejfO7dKoVszVTYJacd31mRhz
+bqZwasuFGhX6Ml7zVoqhcGPI3qwejVNetSYGZdo6SZUNEz22m6ZE+XmehuPZLkuTI1HKoDzu5g9p
+h6RVdWy7c1QPUG2qhrNYjGMKrm1WgOk5YWJ47ybvb7vK+iqndehi4bOJ1sfL0m2XJC6+UQOBr40L
+t1GJxC5UpeWqzwOr20TVZvPhnYwRjbuMJ/WHrOtnnA8jW29lq1ladJWg123k+A86kFIX0gbkCzfJ
+7Va3brH5vLVMFzHrojvTHUU3OKnwsNsSM5b5AHgiVWlYZqy6ZZy1QpUVr5t5mTc4QR0eXEO2Wa3S
+Yl6EbcZXnamdVtIM04eRD8OkGpEEd+6yOfFHjgTTX2gdHYVUPKH6tMdD1oecUttWb/tyRIkyGSF1
+HqZuHOFhIo+TTUekOsK2WtUlJn2OSIfPpm5Dm4oDX0+nrl0yhbCLl5IuiB6VEy91Xo0soh2re0R3
+syPx3nAeUZ60Q1zy2s5NXfhmib2aV4NxvvSmew3hzd0VjjLUVpEmWUkxZzFOd7Rpsu5V3faCRlXR
+4FjOWjoup7Ib1+y8mcYyvcjcuF6UYU6WfFigoqps3rZRldbodlexxM9FrLiQOc86UeflVnUu91tZ
+v2Vo80ZtVc9lUYWp9xAWdVsrWTPzCcoXJsWKZpqCw5XdcFR6OYTdUobsXVNmEGvzOLg7N5fu09Sw
+JSo3GgjJxSz8Nni54YvgovnkVzYUs6/bmwx1+KbfxgEAMRL0AZByX6nSTT3apdiIK7FsEs60nbce
+0pnenNJYrFyRLaALLGUKv5YaXaFp6AbFvUbiKEHdAP8uHfgmXrdMFppCYKhGju2musjkq6GrybTb
+NkOyY+gHxG6bHOBmIaorT+v+vdiG+JDa2oLnuBjv7EhrrETTJEk+d062ahOiv23bCr8b07HRBcl4
+ZXdzxdo116m1dbGuzJ2taKnQVRc9OetnNMd90h87ZWIz1kXQpnlNaxmbI4Bl9WvfpyPrcrOO48Xe
+Yv1RrDRKriJrm+pM8MVWeSLJ1O30EiPgUdJMDJxR2pdDn20ih0w3aNV1iIMDt2jVqmaovEsiIW8t
+IiaogYtsytMRGwTAdaIyBwWhf7lCTMwKoGHY9UMPp6AB77W5rPjQ5H1GE6b8NjbHFNSL+7U246Lk
+SptNBQj9V66zS6+4LPnLsUmrLdctt+hEdJQvedClXF+Nlatus1qY6WjlbDNndtbDCXRvwim7LjgU
+tXHry5oISG/ZNJHtaIWGb83bdeU3wtX1eD5p12RqSmkgqnbpWBZgJep3cgvZOR0DtAe4Q/MbG7iP
++SIWgLfcjqY9oi33uzg2XVYsibOv/KI1OLUdarez1VLeQor2a+7Xob0Mkx/uUjKBhiD6NNxEGgek
+BhrbWxxGOKUgJ6sVxcx+MrDvexRcXx4T4/v7USA2FgP0YEe1iaxUSGTtRxpXO+yMaZYpb5vZGRW7
+BgqnDGRrL6XbmFYYNBt35H1XclXzRV8FHrqww0PNrxNS4/sKh3I4ykxppYrOJQOsA3GjxhH3Wukm
+Ea902ifieJFWvhlnJ22OtpnVBQXgKRSjbKpVBlrOY2KJaxW8PrvqOcYfYrkuUMjE1MhfIN7vkYhI
+ASVITFIo55jux79BImlEvt3SyefZVumzuk+203Kd1l/M8n3zIFKW0j0QwZxBL/90lh6SpEnBgDlP
+QA1DyMvTNk3rEyAlkp2wbNFqWP18WiZ++zL1n7zMn13WF1Lhvh+iq7T5U53768d/XX6V/D6rQ//x
++72+9x8/vZwf3RTc47PLu8E/Owrdw2fV7/CZ/cx/PQQT/7mSPQvz5IfvKKF/Q/p8ERT/zeB/khFi
+EpDWX33Bd4SQujPVX4z1Zx7o8wN/0kCEvwCGByFJMuB8oPUBH/hKA2UvGDT1jEObkkrov8BwX2kg
+oMsJAD2EkSCEU7QHe19pICyAzEWpQHu2kDHExd+hgQ77P8Q4xRmGNoYARwUN/1PvCW27SpOtiyJt
+MPm2DuLtOi1Lrmltbr45lz+d5aeM034qCR0gxymViB4Ac1ICP9CRFICidV5Bb0uL0Cb4F13ZYdDt
+N5Ry0CFgMykV/KDv3/p+dNAALIDLUl440g8XBDLBy5/vBe+j6ls0/nkaAXKigMhjgMmfnlu61LOr
+52RW08zcSb2O8WKqeLhiQbNjsybTrtYrU5NIB7U009ypOQR9ymoSc+gbyy+R+G/pjh+ZEbpACs0I
+dKJSHCSBSnTpNPVxUX1cW+Vp056viHdHVTvUl7/Y+o/mEnC4YE0ETS87aK73MLHmEewIKPNNaAaa
+9z053srmJKvYCevdx1AtHwMuTyta3nQsvF/7sojJsBun5hSgxK/6yu8acTBGhtheCgQWI4N27Kkx
+snLMGir0ukefkjzazq/NGZTp4HeiNt4Xyzh2zVFTbTa9xmsKKU2HpN91M8Xp7ufH8wP/y/aUL+R8
+TCB+Dywx4piauHcMM2XJaQMmu6CUhl/E0g9s8GSWgx2XbktDXZfQ3onUqTXr+0K7bShGU7fFf2VD
+EgI2BWYaKszTw3XOV2XXQkCFTZujVK7J0ZD2Uv0XZhFAFENjKwTODmgMqeeh3WoNTtXX9cel3/xV
+MifZ9c9nOayVe0fZZ1sB9BCwbYfsbUK4HmbbLqqpcA0N42C4igjrnaZ6ukBD1VxAzzuckbme3/79
+qUUKDgGYIs0oPdhgl0C7tFg5K6K1uVwxW+5WjZNT1lbslU3ktLM8y15liPNf5IbvPVIAbQCxATgE
+OF15kKqSRWcscXVUtaDjZd10/YmR3p/83f0ButubDgG3Qzg6IMYNGucMDdAgh3S4Rhm7m6l4U27Z
+2Vx7r5CeTjh15z+fc5/LnyZhAYeZSnBMaNa5ODjT2aBFj1MXlQRmFhoUDOj1Ug7b1J0MmFRZ7mk7
+mAKLKnA1+6YmChpIWd/+fBmHXBCkHuCXwbdAriEErpc8jRDmqJGygWWIDFZB1rKGNsKMu1YvOqeT
+G49/Pt/+fYfbpqAFYMyA9Ev3GtG3uDLiraQ6baEDlluTr8CdnAClkBTr0AwnyHZvDDQuJ0ES+Qsb
+f591BGYYyFtCKHgSPpjYbLSGPnmMqqRNkjeoT4qGenk01DH8Iusc0pr7M2UE5gJYKwGhHGQdM3TA
+tiRDVF3r6ybfStSg3ZhNMeZ26ugdrjecnawuWba/m4kAqVFQDoAYg9nxIUuZrAZh6A1TxVZJVOLE
+uBuarPlFUB7uD0on2A6st1dZ4MrRQQIXaYstGjRXoSzR9Spnn5c6nEbCZ4Xrfr2e+/gLZAQXZA4c
+Zz8p+A0IcQAbIQUeHCqeo42UtFKlC67bs0rMDvvczZA6Hm1I++Vqgvtvq+qBIFutGqd2LE8n3bXy
+TV1Gay997Wt8LYG5RYUWs+xParGY6aY102ahubdzUkTNuu6DYA2qGyWz0iYnq+bjct6na+nyvg18
++dhNdE6RmgJ00a8ij1k95b2rtvEx8RLoAjWmfpCXsp+g53WOGHzW6IkEB2QOIuQl1ch3R951KatV
+udZjej5TIIEuUx6W7NL0PfScwVJwHbZVsMmKbBAcfSDZH6wVpssnPDG5q6c0SfNMj3AoXQ2Umppc
+ukyvdJ2M8cNggLQ5a2RFp51kbRkvaOeCviEgHVVKtlF2QMyNCVFGmCrumE7MkPtGL3dMlsA/IUo2
+rkDP2T7Yal0DEHiGxp3gYex2QMesaDfA4WSFFbrsnEq2YbsNKaQ1xcNs4Pwqnjjg16qRnGyN226Z
+a7flOF38RlWgsvokkwxIjzjF8WUfMjggt4z8YtqqdVCuBvUq35IkiHMJdM/HrWIc7UQlFppb2bHm
+Ol10M30COOQNKuqwmuUa9w1wRbsxtgFa826kMX7oqM2MOZJVUw5/jCiYU7KSNVwty8wCNPRx/DC7
+AWHV98J+XEZaPjRG9hRoVmtxsfeSSmG3hPtlm4B0S8ata4DMAvr2fOOpcapuKbtamfAjEDtGvE5Q
+bzbV64EOl6YsLZy3jMkRMFdaAOpZukQNA95atQrHdW67JPtj8B0FdilgPuaTTcIdWp28Ac0Wt7lD
+tASajYEKkfuFulr10PyAPLm022u4uWTrY96ZpINaUpf31eppr4Bk4aGwgys/1iOQMmetL6e3e95s
+KYKrGlyU85DcLtDY3LQTrcBelpJ3AzihViFWWKtq4Pp2LMsJmDoUmltdVcGANtN1LJ9SXS0XTYzL
+FbKROSXMzI9ZnBaktMXt28ywuc0nnpirkjlJFQjgaaeamoMVfbcn3YGTM/1u8snWHpNFxxuWtVjn
+6aCnN4LvE2gl+rVUlXXbu7Hi/WM/+9kWkH+zfrdS4WZlJSO3y9BMSJEO2dMVw7yqxxaOsZabvBxG
+R2yeDeDUqsVrB1kLVfxsm4fYKIrmAOxt65sAlZbLSiUMaXcs8QreuK3Bu5MeWEsL9uqB3yO0wlHR
+tpEPIiGVKYIhQHYD7T1ghbNmSfOmjPSy5s0gd0lFmipv1rHfFLUszAVo0+MHkozyvUhc63aJddUC
+ugvBblfSgXd56FBWKui07FtfbbTNgQJCk2KQH1wBbXc0hcy09hBAadNDj1YBo193YlmOqmxZjUJm
+YVJVyRbbnHpi+0uchPXWJKZ7aXHDgcdMJoeBTiShVf1mJ6JWU5qoBtGBHhLDtjzoEYc8sJLUoLUN
+3JwN9eBvLTgPPk58BD+v8Lwtu5DW9iT2S+hALmzYH7Zpg4VFibgpAGzAF1mJkx7ABenGQlcDuDgo
+BSXOcdQp8KVyM/Z17Cs2KezxXBdLmQ7r8chNBgJ3l83TLi4hs8pwYLBVRtyCdysJ7K5na2VOEbDg
+aw593Ho7zj0C46ZzOhUGz/NlK5ekPNJ1DxdFBr7Z26mxybt06ppFlbFsdbFuoQKtDUkgHWNtHeS/
+2WyZ4mIYXqXlTHXBAmoeugq4wGSy3UUsk9LnYzJrpCCp9CLvWb++WXxcHpfZi8vF29AXEc6ksMBf
+UahHmnxAvkJWzYCX111nu+xKBLHhHNUEdBvPm8TCzJN7D6ehGdxFyMAT2gWBgNTXw9QUHQjOY540
+OjDw+BLJvKNQK5TZrG93IsZ5yru0SxoVY90ilSQl0yeyFAHenhh/3DGv9ZWsJ3tFx6wOecZlT9SQ
+OHZtMhBMQWvrZKPKoAd3PG5JNCeoBGr+Ykw39z5jI2mPgq0i6N6tdb3y66gfglxTr0bdpXUufL2t
+yk9irY5BAcEg+IgVCpzHqJwLDVn0DbbgrUdMRmNU1c7TQ01YaFS/zuxlk2CjVQ9Joi0CapOqAPYB
+jsiDUgRFHU3m3YL7IPNUB26VIGwAtnmBdiVvJlLf4LRuHvFaizTvAxhbhWlxuECuite0GizNF8Ij
+LWiE1Hnisq17VfUTewsu39OcgvzZqHGwU7mDsAP1EG41TMUatG7yiMUANxkyAYMaLeajqSN7XDlO
+QAqZphqodOoMLuzWsHg+975hu2lwqQY1OqXtWZCRRAVVsnufusxuUC50Kk5AHXE4h4tR0/Ym+kS+
+gVxkSb5m1RBAld/kg54QuQfyIPGw37VsVAradK0cXMa7AuxQ8dylHn1aU9G8BrfnbFeyxY8nQIlB
+Fk66KfYnDiU+KDnX4BupDebabRb0B7g64iqVAqvwxgEZ/QiE0PZHRfcRtGm443Ls0jhB1FV1pgtY
+kH9NofQleQZ3jGKu+yxLT6Y2Sx+HMkp6lGZQKUGN0rZVDTX6QWSMZSAmhPJlGmzZHs2k43XuCYjN
+iuM1ezvZoe9VGMk6KgsrbhTQv/StdoCW8z6d0Mm8DrovoPSJq6WKGp9qsEl9xHyKjrMydMfUzFNy
+BE3Gek+qMSOvG7gkArEOCltSED3xTGFGIZ3TxLhBzSnJelgeX6EelGaFYtQmAlQjXspdz2J3VnVJ
+q6FyLovLRaB6PKuoJStUDABrKvKFUwX6E8hyHi3p28wRMqiBYfspHUTt827UcFx0aOzt1vW+U8Pc
+VXo3IpSUkA7GTu9MU9rhpQWCKz3SaNJLQZBvxjt4l1130tGsKhha5wpqk8b2yDks4ZVd231ak7QB
+ptwTlpyhPiwYAiUBPVjZ2ePp3eYiHFHZdf54yUy4A8k3voGrcnDPyS20dTnAP6kvx810y/FMWq7P
+QeYt6S6yTmdnCKilh2lIqckd3dAHafiiNqL7mM9JSVFeMxDp1QamZiCO4GXnV6tF7ho+nIe+y/6Q
+PbRWJ9gvXVVkIMB1gCa9Lo8sa7b3/UDIxZqx4VU/8BFo/WF1zQmqWcsKMyeyL0DnG3bIojIWHbFm
+2HlY9kfTe5meT2aqzhvUuPNqtZC+eSv4cAw1GQNmLCfxEtr3JU+lT0+WzsimWEmXvq3gstQAehOv
+3td0WF73GSQw4ExmdL95j63SySzuNhwNYArfkFsBlxFc4ad1Xgq4xgDiMzYmfQ2XELpFeTD/eTZr
+88Z3gJhVHDd3PiJjapUMm9/BZZZGqKpidlW0S1yal1DFTue60TfVnPHHckqmazO3/PW2lfjGidnm
+QFfTJs+qdQb7wJ2v9yVcwjnrZjw9glJsUzUtNQXgIpPtKglDC+q9Y6ZTPe3Mm9HI+daUdfexSjc8
+HZWZmaIyei4zSCM6u4Q9VB9DXOk7viYzXGpAy5YeZ6lP4nGUor+J41IJuBY2jK/KvocYzMAjwfcb
+2RV+G0Syg5odzqkf2MelqeQj8E/9XZqNgr2ES2gWsmWZ9G3hTOZPq3FolrPVrtPrGRJdl5dmMB9Z
+ufpBNTatrjcAGHADwFZQ8lkS31CBNAzVMZ0Aa/Z2gd3C/9kCcRyA59WSotmrBNS4WpkRsS2f5gFG
+gVpoWoVAUV2LxCbLG0ndegUXwZxVlqbQytBOQj8CaIy/9lVsKwUcLhpy3YQZtDe4ACBUnfEp7ghI
+31yV5VxD6WmchYQnQYWH7yfjp6pd4EbgBN+8q+NGzr101WM9z1EW0GfXo/IgcKOCdUbwfFz6BjQ6
+mbqbHkpgC4mH+Afbx/ZdSDz0FhkTHF4xjfQY2p8k5AnQ3tcTE8HmNixpk3cN0AZ5Uku49xE0QtdV
+NcPlU8Lr4aX2M6KF0L1pd0DI1/1Ow63FIRdlD8ip8p76E7O59YZXuLmmxKyPo0/FJQE1m+/4NM63
+dqhCmSPT2evQODir0EoNjWuTcpNXiRBnvJbgWSgB+kdBwxkNADDIskmg0eZhrgDsYECa90mSmvHC
+It6+m0bLU6is3n7C7Wakss7xOxINMseUaLBo73ryYUPY18cGYA4vlqbFAA4Ds3yXIDamUHZX5otp
+GAkQfKy+9ZpAEqxKuJlxkphqmY7Au7urmcGVn1OQNTgtbCXj8SrKslVDnbibFqL5DJCaJLskzWC5
+DjCALhYW25uYtXCugw/ztRZiqo7WBm4N50NVZZfQt5p7lzn/bvbpAAUB7kagwtJxGFVSpjOU2aQF
+J8fV7Aqpk/ZjlM0G6KXitYDLFrZ+aOcuw7lmvK0BqzteF8a1stpZ2ur1zNWkbnaV7kFhdoyOUPsx
+1yc2I7D9UZfz6wbuZ9a7Bu+RKAJZ5mMD4Vjtqi6Ln+DN2x2pWycVN1taqQXBnZu8HhLfHvP+/5J3
+ZstxI7u6fiLu4DzckqxRKskabMu6YdjtNud55tPvj1p91lZRFcVQ3561orttSxYqMwEkEvjxI4pz
+x2oE078PBYknKbdm2dhd2lbgjFI9fC5M3qDu4KfVX3mphrzRKVXnIAt4ABMrpKGy1UD+Bds+9jvD
+mcTGOKqkO7pbfSg9XqMp+AC8OFDVfSQYfmL7qhX9FJrB+C3EaVM5XSLGD3op6rz6hkz5YdayYO5L
+tTQ6YClBF9tar3vHEfCsBRomTXwnM3P+LSR9Gh/9QNAMtyhaU98MwuB/9etiuBl7wCiOGcStVG2b
+so3AY+XTqCRUC8IRs2+iuhtIOESFvx/qyPxhhJ75PbbM6kWp8uSRaj/JRVLkvJPiNmxCJ0nToHeC
+0Cp/93JPNBhWSZM4wZTpppONhP62InoK8XOUKaCizYHky1Dx2MstUScMH6rxhsxFX2/iyeoex0gW
+Hq0mVAe7qmueXQF4mhcdxMHfmkAQyiOrlwGt6cSjg2okX9o21KqND5zEdwbT77RNokr539kUqn88
+r5zREd1kBXaij919LEm9ZLe8yiZXmybhrilUEiqporY7mTfWYGtyCZjJJ6WTbTGfiFurrIXMjQhY
+IicfBNXf6dYkhuikF8q218tBwqtQ9r8D1fZFd6IYB3yS3NW4rVLRIrHAnS05PCTnCFL1BM3xhSEp
+ttxz+mB3fSWnO0mvrd9gWkrehY0h/xirWo42RdhFv7RCCyKeJUqQu5kahLUd6OBXlDj+2nucSQVS
+IbVHIA+S03W9o2rT1i+7PnE9r+9J2Yi+VR10vyon3qBD0JLwCrobKcv7CCVSq7+MXPB+Klo0PWDQ
+cjI/BvXXSTArxTYATfxQckIgck9yHdqlMHp/ROp43xV/jnSbUPHuBIF+AztJA4HbOzUl1yKtRfDf
+9NxuHvlvV9Wt6jRWmNmc3+HZb2pi9i21kv7HIORFZat1I/rsZgZ+Lcia6VAEefozIT75AsCRLEeg
+UTGzE09W7kwvBOXYSYPibbsia4ptw8trxOVGfuKO3MW3atO1fubIAZWlaNunuvb3W7r9/0eUw1/v
+G6Xf973MqJErGIezNrAZ5DB//z8QB9n8HxNUqmrqQKBFjeP9L8TBoEuTqqxMt4Qh8Rqev/QPxEH7
+H1m3wD6YdLNYFIx0EuT/D+GgKP9jAHIlW23oc9nRMv49wkHTJaDVFvIBhFNPUJflL0Xws0j20epS
+axLFmWhpr3Ztm6n50Z+0qFkB6p7n2GdxqqqYlH5NWVGpTs2J/3egn0IwvDZu8GlSXI/a7yGJ5yRl
+5oWC+oTnr6a/3p3EKqriTZ5Gec9khZpJb8hCnhhmQPSScsBcxeyxMRT9uQz1aLciRTyvIs59PDI1
+A2rrEsdMW8UCV8EfSaQXpIebw/32fu9ut7a9vTltt667PTn8/uTyb9d17D2/ck8324N94HtOJ357
+dF2+tnePfG1z5Jd89/ZwuHf3fPXEXz7wrY5z4KdtdzY/kh8/f8s25+8fnrf3hwM/zebH2Zv5y9vD
+1nnlW/gItjP/Cb/mNxvbdvbOHrl8Lz/xy+6eH3/juvyoV/7ksLE3G37ii3uyD4dn+7Bx+DubzcbZ
+OI4zf9uGv8/Pm3+Yc8svTqyET/Q4i9/tneO3zXH+1s3xYG+cO8fl16x6v8tZvMOn2272t46zPZy2
+8wfls+34m4/OT37qnm893j3t90/zNrFR8992T6fUnsU+Ofzx9SOTV07MWlR70qiqVTGSHk7b+9fD
+9plFbZyfzv7oPK1IWvTafNCNpYk1dZXIDbqxdR9eft379r29+XHniPaKHGX+xP9X+PwoByf03ra4
+ninYz3I4opfD4yPn7LDfHMn+5uTeOM5KffkNxX9N4KJK50lNGU0IPLmvz2gL53T9jPBzK0uaD/Gd
+uyBiNrwuRMLDzfZmVujt6e3//Pf+dYtt3KOrp9fT9vV0X9oYzun1lbO0b3co1uFxd9jtdpvd7ta+
+Q8OOzs0edf5xe/umjre2c7fnvLE8zMJ1Hm4cG/vcHB+cmxu077hfqQ+vKsKiQEwpoPMi9st9cZ+x
+G3ZsTavfitvXjmTe0HcbNuHJMw0RN9vXe3+DWWLu97PBs22P/O9g7/jVbNW+zQqPf/aF09t/3P1+
+/6e3H57WVESbHey1D7RwwGljKlE6K+X94fl+6/zZH0J7u9vOm37a4uPcp9PsJjkYDmJj4wOd+bfu
+/fbZfT48ntyXHN+2s19ufm35ASzlfmfvnr90bJ+LF3k87NC7zRE9L+zN3c/IPj5x1K4r2+4DCvFq
+2V83d3iSrWvv3c0Dfuh4mh3MdVV9a0K7ts4FyiHOgeFLaCoO+2S/4HM7m8/9Y7e1H//jmVkeTvTG
+cW+2fIgNfvf6J1Ckc7zHR/tf3EGTMfZjP2/1C+79xC6cZr92enLvXefmcMBb71+xFpw1Hp9bYrfZ
+lLjX7ZY95+rZz7eA+8LhbF/dw/09Dhu9uX/0bfs7WrTlTLglNkes8AWvfbTffNlhd7g/PP598O2/
+H+cf+uv5/jW0nyf7l28fcHb4oftHfvv332gjPn/v3D3hY/nvw/5p87T/4+Dy90/2M7fIYNu+vcNU
+v9/e3X2/O+43Xw/H/e+nB24K54HrwNlsnlz75y0X0f7hxn3CRO3N8XiLzz7u2XqXXX3bZlb+h+3m
+ckUid8v+xL18unH2mztM/e0bvz3xx7NTeHJvHl5eUETn98qJXPdeUAmcGyNF61wwuGK4JW/4B93d
+nVyuPEzfdtzjfy45Z0UP6GO4anLyzOPy3gfEnWF09HWxQbOin+6xf0xtljrf3qWNFdm/5rsed4ld
+HGy+Ee+wfZxvZQ6ag+dXj/yFg31HQLDlV/PfPRx2d/x3/8SmuUfn4S2wYVu3862JRd1huYe3cGF/
+PGKQs6pvZx28387uNLD3qBDbj7feuvjjm/kY3f3LiUjH3d+7/J3rBzDfDv9nk7SCE8+asgQwjDZr
+MFfz1985Q7okeIe2GbUNWaCrpSk6B9xHs7ku5fyU/5FCvzqATxOYsryw/NyrC89U0tr2ssjaeC3t
+EFU2JK/+MJVuGFvC3XV5H1c1I5/FGUgGYJoHwvmqyG0ZmkVZ326peW8BKwzbIKH76fNSFI0Objr+
+dVkTF6uSWjOMKtEDeaAG8ncxLNNDUwxrXekf9w5IPjBteu3hR9GWYXNVJmLQGBZZF2o6BsXagdbH
+uNJATeTWSIeRVPbB8/WVnT9B5vMCcq4BKwJsqBGuL8IkK1OownVjZedlJh+pb2i0G8XRSSRF5H5a
+1AxqlyQgAvMTYbGJcpGKeUou1M4T8sKdlU1bcqTUgKM0WYEvXdhJHdQb4G620eBleK4VWkG3lpCl
+tL6HdXRoqartdZ5vt2quWPd9lRv760u7oIXv5S3BUmOTT7neIa/KpKnYp5JXCJuo08MVORdOSwd3
+bwHmY3kf0INeak5jSH0dPBEsDE4UTdHoNrQPvyp+V64Iu7SJYGBNqMtmVgpz/vo7h2GVlU6ReSxt
+f5Rjt+0q+S7Qdc/RVHN09cFUVxzUxcWZ9DLI2Bm93wtT7tTWI10sl7aUtCoIjEjehI1s2H44+Sv2
+fEmUDqCKFi5ZIlZYXAqSoGl0Cool/UFi4jZyot9RTpeB5PjVioGdh3xvBqa/F7UwsG4yiqqWWJU2
+5fdBYPg7E0z/N0NS1FtqUeW3ymxfPq+N70V+2MhQoL4rsZGBmDpq5WlbiO/8FXO+pPM62EdKy6oC
+VNg8Vw/yr0FF12llF6HVfonzAqSWmSkrzRMXpaDsGPPc/2IuogZP81TKbkZp5zWwLmXI9W3Y5fpK
+yuKSqoOrVElKSZYBfv18LZVl0HRX6hQh6AnQHdNK4mOip96ftKiDZwt/1awY10UNBMtJlws/EYTs
+ucRICJIq1BU66MmX7ZKu/UEi85dcysbm88pgQNsA8wAuF1DCuSAahwK/13AZgScYTp/WpqsmUrNi
+UIvX76zmJHUs6BrgsJkvkoXHDQRw04lGGbBUyA/XGU179C6Sqy4Kf5f1M/ZF13aeF8c7RWt6wS67
+rLUnkfL3Z9erYzpUWmWNvn6CnvP1WmHKw7LjlpEyABMPWa0G9SFQ2nQNxC7NZnQeUCFJJ9ahC0HT
+pGXoMdS+GUhDXoHaCOKjmMjdtiwL5TnvqpOvCxSj6iLfVHEOzhv5zjDGgcMZgCa1Du0olCuh0EdP
+A/hZwiItsqjg6xdm34/ER0IHvKMQTfgbet9K6fFvel9xe9GntyisOv2xbhsK5p/dcySDTFbfuIo+
+hEejrAxpK3FTDApFy4pCmTMpbbZyshfX907KQsXGrrAmv8Rp86zr6AhOqISWnrBLVTCt1o886stP
+uzjWxQGzcTMzkbXw3bQRZwoRZWkro1nRTzyoDlw62crufXQ+M2idhiRQeYDXZ4qn9/dslsteXBsN
+zfO+pT/m5lhSKKd+K7ZJ9KsJq2l7/bQu7SMqO7O4adjJ0iN4cQ6PGwUtW48AG7pdaQo3sif6jmmm
+9Umm4A4SyycKXFnnmtzFOvXWp1s7pyabpFl1E/V5TjWnnU5RK1Q3rampjhhH0or7u7S5c7Qp0mVF
+t98bzP1dEEOPYlomVcbmhpL20gDNbDcy8Kxdn1kizA6Z0Hy/vr0fPbs1FyTmXkwia2sZC7aK38/o
+PypRXp25egmOVEmjDnzY8Pmwk1CaCIaWFrrrNG1hEbE6TXGvq4UNZjPZiPHUbodG+3wwbcHGRUBC
+IAgro7o4N0qoea7KY2ELEDftlFhNZ1Txg1jGmp1U4op2frzwz6XNWvTuwHpf1utBx1uJYQJuVQmN
+WHc8uZrGFc2Y45Nz901PFxD2WTvoyFnSjWHHMIQEU2EnnVgfA7g6dnmWisc81cxNYejd89ALoPhS
+0kj9500B8j6qVXOPGZHuYpFGPJgTMEpwH0JjPSWlJt9DjNbC36GVhxy0ZGQXgaetrPiCZs4Mw9wQ
+MsRx+two/H5reZPojSL1hKKSB7+BAjdDIUWgK8RO+LyvhhjsLbrWeaYs247MAtCy6s+ojiDvbnTY
+AA6p0mjg+yyAjJ7RUHmHKmZlWy8cKSkO8g4EInPX6eLurwLAswCa8NetLvt2EgK26sO8Pmq50t4N
+ah4BkrXAE4fg/a5b/Qe1nS9dOqNp3YccS37L/L5TW40SdVGWeBSQt4Uti5myJRfTrfTTfjhBpHC9
+wicH4o9IdRE1Vt4AIHtCZ6ewkQAFt9Hk8sRN9gpYdliu/1u2/fIfS7jSgk0OAlmEprwA6WyCRPBc
+W2I1VENtBoABTqM/pGyF6bUT5GSt5fDimmgp58jIDOhLJxaCKjF7sS3Qyhg6nWJUb0RQ7YeSboAV
+33JJFHww8CzQxU4P3sJfNr2X0eyTIqoEqULaQ3Ah/voR5OK4Et5fUgd4GzEBCfZESAbPN69MQSwO
+ckFbjSqGm0og1g162vw+fUTzNcPVyObR7Ll4xta+AX4uDHFhGqBtUYeQpsxTc8WWL6yFgHrO5yHD
+hE7yfC1YkWT6iZfTmz6CB9ct4VfXWtmn3+SWqJChpNWWK4Z7ZuGdDBn+EWEGkKpl622bGC6MmN5a
+h3TISh3m4oLeSZq//s5Ws5ye+mmktdzSu2+mkSmbTIYx5PrZzLfi2fXCckhNzr4Pn0t5/1yI1Axl
+ms+9GJKei7clXf9PqdLnB8vXVHqV+mHYXRcoyZckzi2uNFxKSF1o91QmUdKXSFR9iw2EuMYdsix2
+PKsDvRNoXrDPhs7fjKFm7TKxlP8Io3CsNdiJaFKKH69/nEubzEHqb42ZEnCK8/UHIoU3c0BrYiN4
+NVpBgDdU71byfJeEwKgAcR8d/ejNQmf0sp/CutBycGqVHDpjH+mNW4tWoa/YwKXTnCk1cfAWvsOa
+Pcs7lQFoTUvIiHJmUQb1ImRIIGKFraR1+6yBAPPze2eCkrBM2NAMTPxcWjvU+pB2OcxMjebdxN1Y
+Hgo8qPsvpJDsoFefO0tfJrWNxKiU0ccbRnVa3YL+SjeDpoSfPyK2jQcU3pCDWu4cHeQCTZHBHKMa
+wV3SW6ojhVrw2TQR2B+R7ANug3eN+VY6f3c+5tQJjTDrfhwq6SkdB9ktvMxc8bcfsxyzGLBBmkEd
+hVfbwnOk+pRrYmoA6Wy98FYYTXhqy+SYzy1gutjBwaU9FoLooeuGd0Ou+6hbRbFyt8ynv/As2Deo
+afJhdFgvg4CJlkqr8ROCAL2TpU0zBHX2RR00sbvV2r6npaW3kvBQdZa8lqK9YAa8BMBh0bqhEWIt
+zEDIA01sUysHzhcpsROI+uj2RXirqL7qtLXHvz+to1w8MvlnhjGw6Quf1so0j8BSiU8LAuC4tVJt
+jXRas4T5Y5/vqMSRkh1Dg94GBZzbG/lmf6gMjlUPQt+h1yE/jNlkHFTPClZU6OMOIsqE7oN3tyGL
+y8cUTey6WGnsYB5rIQ3QeVKatghu5KtFo8nvoE97b8XO5z1arg7Lm7OMuC+YLM5XF8S0nfilktNK
+kwquapXat7Ltp19laySuJGXyL1Igw00B4e0+pcPp9foRflRXSSF5Au8CwDMJr3YuPs1AmnY9bZ9g
+qX030Y3fsE6+ahnJqdLKwMWraxHlx1thlsiDlUoaGVZlYaV1H0ahLJW5nQkyD9aybfeYSrZykh8e
+GxYsXeRuMQRoByh6nK9LjhoQcDmkxRWI+MkxszB8KacxVd2q8NQvZdxNIXyIAfkiI0noeLy+rRd0
+VoNRh+crbRt41sWpQuBixBmlbRvAfLnVIJhtHMuTgue8rqBjvC7sguOjTMIzGYJccii8B84Xq8hC
+rPaNiOHr9Rf8YvwsebT9dGqVgOKtA+0ppoeotwevr+kf8DzI2YS6Lr8GlQrb4PVPc2HnqcWCzzQJ
+rWfA6PmHkROm+Ex0gNhxGWCuXdv86nVi+QzeUzsZvfhUm9/g8A0+fZWxCZTQyZqB1YRB6VyuCC5Z
+Kws0WRvVJIfV21OmndVJYb2y3ZfO9o2LmiwSaewl+1WaZZEH6jS3/br1vnZjpBgbyFO9GwDwrbG7
+vpuXhFmkrMg+Aq1X3gAU767ORpXlQGjobZ7Iqh8Lmj7v+swQYNHM++froi44P30WMTeMGxT6lPMN
+lDxVG42MdRmR4f2OGmn8ajZGt4thUNxTzAy+X5d3YWnk50Eca2QDYJtZPGETVQjTdszx67lhugIA
+eaeCvoDGjc8XLy30kYkA2rw0MsUL3Qj1ufmhiXJYbtUKzsOhhUlXmzLlIMkZecDrC7vgU01iKnX2
+cvRfvZUm3p1ZNGR64rcQEEg0HDleHtQ0xZUU/SDmrOXfdJ104q7krll5OV2SS6oRkfAHAiRZWB49
+vlIiKwZy+4zszdCG6h3UhfT/ZGHwFWb0/NbsAmEluLtwjIATCAFgtyNlJ85ff7fazujUtBF8XF1D
+hsDLsPIiLnPHMGp9xbVc0FBzJtoDlE3GGED6uahJ6Vuj69Pc9uppcpKW9r1R78x9W3n0yme+sJJk
+ubQ0ntRz6YRcMY/Fc3n0jPrlYEINkteqfpCFSXbpSM9p3QuTFacya+AiDIB7HDpA9pCFLZMFql7K
+jT/SZST6YXIHqcXkRqoWbK9r5kUp3LuaTD8LEyMWt72Y0oyra3iTMkpoMvFE8wYqhP7TeTB41KG3
+IgQ14MQx5qfwO42oA8pu+lggJdEGwwGFnox7NaKm5o70bK+RKF3SCrJT8zuGoOIDGbkoTnrVQv6K
+AjZPXTM9pDm0rjrxlG2UUblyUJekzePigE+RIuZdd764IqsjXSkw7mqEhz4LK2ULTYxxEIehuJn6
+qV25AC4cGR6ZLDSN58hckrbFhlz0Aw0Bdt/RGWZPgShDIJBL3loUcUHZETEnxcjPquI85uT9qQ0F
+Iz0aevOgv++MdG4qbF0jhkOX/j6verquiBd2kU2kLAlAwbIoTZ8L8wa4RxrfhP/CCrTM5eOUf2WV
+CtOsJ5DEJeuvBp/3jvCmkSklJqEyvLy2J+hshmCAdCXqQs+JBfrIZS8kSwu5qupVgz0MUu9eX+al
+PSWo1ub085xnmrfhnSUETSQUqQDNh1EnR5lK4iZJFZ+ue3ktub4mab4b3knSCyBhIIJosm+bsDvg
+qptkk41xVzD4o+Aory/swlVjGXNRdI5NuFMWC6PZ0UwCqNntZpia3UQD85dJ9yy31OpyIwzWeDTK
+0Pv+L4QyVuMNfsRraSG0Sq1eCk0lo9eYTQyBgXxNR/1roGfVVtRLZdvXgboi88LzDMdPVA02FciC
+utjX2pzyOlKqzOalJNl+kB2tYki+j14QMThTSV+1VKxcTRCrg9xDpXB9xR9j6bkihAsloqbnamn8
+opobg5LQptcag/TQyjDTJUHl/xS8sj1NpjB3nJf1SSjqlZtvtr/z62hWVyyFOJqEwvI6gtTLgj4s
+y2xPBjREOcPf0LsrP1xf3kcvwKsT+kYQrzM77vJ+7YysDUM5IGHjtcGrT4ds4MLVnmdb1Rvy1wbW
+qp/XJX7c0PmdS0oNciCZkuzC7wRwSQViRQTBBBP6scsw075Y7RT7dkVJZaspGYQzmS92tld40Rpi
+4ZL0tygeog1jjrPPjbQTcjGUoGW3xaIIEviPMEy713Kaca0eCnY7zLypd4tBLOI9yWLp7+ur/+gk
+FO4QevQoSSgymdJz+TrVCMJknIQ8xMqBf37GhQoHWWCa209LIkVKZogyzluC/VwSbwfZmhJuycyz
+jMzNJhMSfZgVhWardzNt03VxH62UWVo8I4gLOVPSCufiavhcoqGBYkSXk/I3F4gb91HsSrFHBq7J
+8p2fQjVV9NBkRKOifrsu/aOxIJ1UOu2vIpygS6LYptX1uIXyHKr6KrphBINoa1Emf9okZykmRX4q
+PcBLF88lLMQEod0TIfaCdYxG9Y6+bOHwL5YCCzlWD9KTsQOLjQTnJ4BIYyP7qfgCIN2DdkwUuzUc
+2AXLh0BMJlUJafZMN3ouh9qplvbwKdg+7NKuBQkTLGOpfwDrNxzhJRA+HZICNhPfWCjpIv2ABqt9
+eczL+YgEIVI2SWcmdxp5r03qD+qX61t4SRdBXcLrPScswaSfLy2NQvhxwpE73+jrgxiVqkNLa+rK
+Y58ciroSjyW19getioof9MAVK6ZwwccQxrGlZJ0Awy9xwUxY6IB9EHwz14TZKiUZxS+qmRjkMQej
+epZlQesg0Q/LZzVkcsjK4j/GBURYtK9S7CEDDo/1+eIhxi/grISMT5py8QfWEup2JmOMTsvMjhqY
+Yxw/0kmv/QuHg2CwBRwybmeZ+2/CsC79jkfAKJW1I/AJD505BS+S0cYrsevC3LE8xjSBKOQBgA8n
+sjtfo9fBGmKpY+iKfa25kpnUOynvohUPukzq/SNmnjfI+COc9kKPGKWYiqGizHPKin1jJa3LOAZh
+k4sQT5V6Ld5RT8yOsSJ88QZv2JZUOx88JumsnOhCnT98jIVHUAuxZ1KFDAXJTJMyaEa1IzDsd7mR
+Km5sTZtcV2DkmwdnaAAZN9eNaXFjvUkH3AdaRSKTSgbnfK+rPMzDyGjhP/P99qiV+rgR/bbb5mG3
+Vma4dKzvRc0b8T6CnmBE09IudFsLwpJGSUxXHup85VgXju9tQUwPmCdazdADa2EgAlSgGjxigeuF
+ldEfRRCwnlOPRVwdlDGyxCejaLxPRnOzUFD0VPnoL5978Re7qDCqpdJymLN6L/BPDZSHboYGrwSr
+F5bGPMt5hIVEL46xDJWZ8JN4AgkmiCRGM71ppUSJ9w3ULvKeVv2a/h+jwONfV5CFw3lbGqXLGaWF
+bB4j56eWe4YHX6saupCIRczVi4qWuS3GVPeQYcWDMVhOAxlnv/Mhal2j/v2gMtTz0X1wEQDt8bWL
+K7nqGkMVvEx1tLLx92LljY4O6HVlXxceHToZAMNQY1NB1RVqwQspbRLSvJLL0OrA+9Y5ML/k91E5
+wKipD8IGrsX5cVJkW7hp/RXj/2B+iIbCfcbCyZRTlnNPLGY9eXEED58Eh6v0RdaKrvwWNlDtqjb4
+lrpZqUZdkoddcOcTywFVX9ggtNSJ7AmF7Iyx2tlJP5kulA+Jo7VT5V5XnAuiyN1bpPABN2GHCy9e
+0M1VxcBp4OXqgo1XZhM0aY2GSyurlQP84EIZmMplzKBYHdZ9LqdzHY1ivYRBFTbUsRbzm4CBUzvB
+m1JHhkTosYGYBwqVNmKE1qDc9orWrxziB7ucxc+j+vQZuYOmnouXBcsiBg5kByU1Gf8FITZT3khM
+i9Adl7AcPlzf2Y9WwYhYatBcxNQ0wUmcyyv8IYZ4F7cmJ7G6j5Os25Rh0Kxs6sdVnUmRF1YBuZUl
+lLHCVDVBNBwfDlxGLIG6kwLroesUbcXPXBJHdnYGZtNEwfrOF6XBpluE5kz/aBRiFm0LtRrDwAm0
+hHErNhOiRjnbjE0SqtvP7+bb4BlyqlRJlMVuBqQawe/LgqOYuf4jiCljwqn5+FkhMJ1wNZDRoQKE
+xZ+vLoGZDXImUXVGlvPDEnO4k4asWMnAfVQMmh9EnQzcPPkYbMS5FNjiPL+PrMiVZao+mhnmkAKH
+0uGza0HKnCOiJEpiapmaqnOlD+Dqi9xClYnMaHfdhmK9pg8f3Qf0dQCogMLREsqokvO1kKr3RqU0
+I1fomHgXBEzJC6Fi3w8exfrrC/pwxc2IJmKqmcSeRqHlFVflc4dtGMZuSZvYX1Pcps+a5pfbMtIG
+tzZz4eiTRF3R90vrAwnBjGLSs8hfrK+a2GC/ZBejMCgpGQNjr2XoogdB6lcs+ZIoLIr7hfcKeZGF
+WmhJ0IW0fVHBmZTmfqaQcvLOlH6oAAw/bUxz5x4YJDLqc1pvoefiVIZj0ZqxW/RTvrPq5E+l6GvQ
+g4/nhT5QjgDzP1+bS39bKxKsQXS1ooDG+LXNp8mdBDW4pee1PokBo9mySajWamMfjetc6sJPePrI
+XMYAYnQFLup9V4TNLq87eX9dFz/GIhQ1yaBxbdJ+Tn3zXO21YYTFC65vVzDb8Esat4yMNIbMSdVC
+vpGCyEttxtApezVovJ/XRV9aIJcYL1vGZJIDWSxwmOpCEIZ5brOuD67eyvFt3IhrmaSLUkhqwy5F
+tpcWssUCoxbEk6eFriF33VYp8hgMmbSW1/2o8rxpcITKzJpFLU4+l5IbzPaQmiByxXby2l3eF7W8
+naIqTvdlyvynFZc4q/W7bC7LQBzNKJBn8YriNXkurmMSaVky8sP1Jhg3/bicHjItTNyomnNVVttZ
+K2pywQTI+gHBmfPmhMeLswoaVRU6o49c0yDaaBqJmpUh5Oaeh0qz7cCU33ZGXaeb6ypyYVvxx4Bu
+kMogL3FxeI0wB18lvOk+l89WyyLG9IUtKV2YtOW1hvkLm0rwr1OSw/DED6kyKxNHuAOZflk3jZ/T
+ekboB5E4aCAn1K062MeMAE0/7ZZJNMLZNV9wUIQt5+Qwh7Kv67ZNIRVUJYfckves9w0TJZS8++v6
+Zl6wBApXmDmJYsq5SwRV0xpUAQIGDIChN5xO6jQngYb73wghE02egzaw5XNYlAofPF+TMs7B6zdB
+Jopu1lvTyg36QS9In3CNUfcjZzMDXc/1f+DxRnExyl36ysuHhLQ7DMdVvwtGSf9+fUEfHCT6rs0F
+MaJEWnmW6DYYKCumrKSlC9G+8uyBzGJ42jTS4OrmXiVaLjd3zxhltS/K+DXqme2zoiKUUD8cHe8n
+oJIEyDMShEb68/XynItp+IxLyKzFmB5wYVISOfnSJVMNg7ueqjW863rI3GdmcJoVA2zhsE5FRuNI
+lO68cmOFopRKT1MKee3PMAaLoR76hLHk3wIjI0Px3RvjKIv2htDVwu8sjQTPdIRQ9ISI0cxdFkcb
+Jp9AIeoEY9aVosvYvMaPdo0VVcozVOaWkDtMDOjn7w+mUmG6cZA2f6QG5urvkzzpyl2VGlX6u4zV
+pnXkeQTHJoKxEq7NSGoi+G2LKDyKRqRHFMeibnwZYKCkQJ61fhUZW1kNsxayeoYrWzYVNrM6icnM
+lBApQWJ+I70jqzc6fZTib6um7+lrzIOQAQ85LVFS5rAzsPN2icAUaT48czeORRWljUPlNuufpFHQ
+aZXMm8iDypwieexEY2NVXwdVqaL7KtcEZZ9YlkeCkLXk2o8yGZmS6iplPxjaHlpPf1I2cBeTi3ES
+MbFUY18FtdDvmhSola0zUJuhh3SmQK7L2IgSGuRxLDzRzQNPGR/zFhLg30mR6XK4a2AJ/F7WPGc7
+N6nyQrgDL5t7dw1TpQA7txJjFQKtq/moOsiSFwlCZRpaFUaXTE+FXoBptXxoIzb/Gc3dGloSPdQz
+B03qCorQWt81bzTq16KtkqB1SDJl7VOdRyRd7S6DkDfgKetZ0j5Q5GZ4hL+7iXlF+FPLgKkkEgU1
+shO5aqfv+mAk/tdQM7tS2MIe0HfJIWm7NngwgrboOoh9idoe+t7IGe3WMHZrjJy5KkuMHY76kH+v
+DLr1eXdlhdV8gwW39wY77LRJeDBrxU/+UrmxZYbICBAB1+7UVxGU8FEnau1Trgei9rc8Taofk5Su
+y0B0oAc3Ihif/zM/aWzLvGpc38p75te9H5eUtoVuTruziUjgJZiNC19KuxyDVLZMhaqZDfI2AEmO
+skrznX+mHoXmJHt//zPvKPL0mrYFYRwl8cVUx6mmX10dpqpz3s8t6uVCnb7+M7HI8prsmc7WIXGZ
+4vLf0USm2HiZ2+XhKJ6YrvDfGUSJAHqkcd9NFGIohq5+ayKznbZQZuOBnH+mBtVeLvnC/tK8oFQc
+oWiwjVicgIhkkZBV4o0CC25hMdILPs5+x8wdeJ8h1TZJA0KNH1MLuGkFujgtR4KHefqtBQJVLNcL
+alBAtpSPYq5ugQhBgmzXEkNaJDsSp6z/AcJSgIWcjnIvu5VlXwClCscPsGR7zE0//qmV1VCEjuGL
+k/ioBwXECXTtjJ4V2VMDRKa1cbBa+1cajRHzNWD6taoWauO4q+ujISWl2tzFuagl1aFqkqBodxW0
+237tdDwKmOJUKLqn3WZKpKctvEVhkAWHBm8dgZGWrAZ+ZPhrNEdWBYHB0mHbMxTjMCkMAuu/eok2
+tu0jo5HL2GK4j2X00tcKbnJsnNYzTYnmmqRgnIZmGoYbE9BQLW8Kf1IZfmONrbSp6xFKINcS+qj6
+kkblWO5LuDzCCERhM1OrW5rcM3Qnlal5bJto1P80RQghvyTGtfhqhHKdPzPzRyxB/QFWAnhIE2n+
+W1bwybbcES04/RB23Y2ow1r4PPJAbr+JTV4luyTxdfmmNuGicnBf4i+jSSE3CtuxOFQes4l6zZMg
+iOhLHx535uKddO9/STqv5chxZYt+ESJoQPdKlpH3LdMvDEmjpgEN6ECQX3+Xzn2f6e6qIoHM3Dv3
+8sr7hM2Dk9ck6h5dDVh71kbJFLzEAADUkXHTaD0oB2Vf3ofarCzuan+Q4t3zmX1/85kq/5084Imx
+AMtIyZl/FpKDS+j1luFDaPwzdmunuZ62Lg8O4UqZnqk68YZ3f/FiAd8DoIS+EYFKmidAHs1wA3st
+yB8I+rbbDeedft/BR5WvRUeo/Xe0V3H7WEObjh7nwdmTd7xAcMqnXlQRwBxttjO16kaAuO0wjR4H
+0eY/fTK54wO21ao92aKyyRePbM8zl7vYXR7H0Ou6/5Jc1iFLhSPfw7Hfzej/VNIwnU5FP3o81Twj
+jn0MfABC76Lb5vC52/ZhvypFLVnrlzZv1GtexLPTXch1Cqfo5ARjYd0LS6OQ22xf43r8Z+JtdX6M
+AsMOa3N25SKyaRbS+/JGkpx9tuc7G+6AWBwzNRkpSAVc1SQpq4Bdjb78daWOpT9YqNZbN3Q/0dI6
+RD338TD97t4X3px8wnh19GtEjnbFpdTzoJcpzrA9BO3Ub36AM8VdwPhxkMZ2PMexadg/R/cYbisR
+rH6KUYa4IMBVnOdYD6blo8UXOqbsUFVL6tWucjOFDwSPpdsLhCTbV9iKHFXJ+BWspmxf81W0/xWd
+JmN+kI0hinzR7qsrWBrPfJ5FPwOhMbbf07LHTxi8uLGT1intY9it9qLg/cpvVOlDiuP0Gd5jF+EX
+aLFRHxOmnqdm6+v/4N3O7YXurf+o1zV8ZOkUHMDvtfBRxO5o2XOcwqtuHcrlmUohZiRdBkkLG4hg
+izNhJvl8dKIccrvfJ2NwsU8Othbsvu1r70b8WNsuLsdxcwCN1XnppKUm7SDDiEcUQTA0TX2qwyC/
+obvZwGu1zf5ZCe7vSz17gzzqclqxYM9zexwHV53CeHPlSTpdcab5IDFEb0o7mNryoTzotuudzGAa
+P4yoF8sZqoX58PFiNtmQc8dkgTL8KMAgSAUyuFrnjJTvRV1OlYGIJQnBb44kxSWASSq7mkO1icle
+FURegB6tu+hCtSM0K7ZhiA13BNdQ6v7+VdnSewrPB4h3mY1uHwKesZ51MdkV5RPHnfc2+X1nUm9L
+pj+yjoo/QWHzfyXKzqM7En3CNyKEcyqrHh3JiUaH96GvkxWq+/QL9psbHd7ovLXqse934C6enGp9
+aXt2dE6LP3v2j2LLfDiQuU+ueR1MKzIQefVnstpbecy32Okz2If6/vd3YBK+qd5kc557XkaN0kcH
+uVOL4EvcWi6ROmoNjK7F+0zWoL0uSFW3B5zNFZ/BsbN/Bi02sFG+V/Xfnp+myqq1ESefre+Af22H
+pSgIdIftr1VeRrPTnmqAaR5Z87z/4O7jrkz92i1eRwUF+EIWZNOnEZUKFow6TkAauI2+V00Yl6fI
+q8mzSaYlnE9+PzlI+mBDE2gAE1ya0uDshdjmluSuE5UQHPel1U9rNLXBc6sK4uzXUNRz2tpIQwIo
+B2tvAzC6rFkXPnTBrlgj99Dze+q7YXe8i76o2+Cy9xuocy0h+lSX0QKuwmczCLxiNHOYTUT2N6cO
+XOS9h7Wq/4I5uKUi5sxMhxBk1KEsBv5YX0WJOprEUPGFURUUOMW76DoBQC3PccMZvsB16dSP2n27
+/oSErry3jeY+qcuq8g/dlCTgD/bC4bO4U5dRLUnSuFfsHle5HYNXL9im+KrL2QPISt8UT3tUdE6q
+cd5fW5NTXJp1hR9pdp14h7CXhc0InUqIXCxt9bANnvd3kkl5U4GakenswEziMEzqKutyw8G47q78
+M3rO9lf0Kk9SYeDfPXnLTFxBgMWhfVfjYJiNqWleujteS7hv+OG5+cK8csRDSV37si+CWBen96rr
+3g1AeIFa4b+bVK+KA0Dh2L/gpwrMaV/KdeJR7ZInw7pJfYSMO+dpgUZdXlSrGMKTwqqjUsMaU3TK
+55xx8C7yFvxCb913uYpfQxTbnPWJIeR0THyDGzQHb3fePeOQQRQURXsW1NP6raz9NdVxBKJvKhbO
+LpSNSLWAvhLdXozsuz4we/OaA/qRcS+HaHbZEBP0LLxfYSXMGVKprS86OIT6mlqFrk3xs9QXDBn4
+c5x6AWsyWckqPAss5RuyfvvjgY38r9T9+h/RL+UnBMvmpgvw5p18uvSHvV7US5eLxh4cHqj3Bajh
+dHaU372MSjicma27+6fIhnCTQidPxCGgoPDPoWtddek37fSCzh4Ue0a/T/cGT9h/Gtmx245sIOkD
+uKCQu0Bwa2XYeMnGyhsZVxSDHQ2qafzwAVWeYIqdZabkhEffGU8iGiP7p+6SWF3OUlEOz8aJjntj
+uIfSqer8+ajJqqvSUIjyoy7YnE8xrTntC8CDdTqYdsj9M0dxf4uJImfF199hcUVLEqZyr8kJwEiR
+/HNGz/5zZpH8m2RAZ2tqgL3Z4iwBomU8cZ9hsIPnI93Wg19Ce47v5Tcs0rrt8LmuK5suRem3Kp2S
+HXSaH9EDzYmrKJHF+CfOo/6r7TbhX/lsp59dJ4yrjHH2OJDDwRT4xOaK0pCucrwnZTm4r6bPDa9L
+vxd/w06vd+Eu889k3sTj4nvLYyKSVZ01FQ/2yTlgqzhqEZ2OVV0Pp1W2U3VMXDg1cD2r7XYdGuuc
+Grnar4g4UtgoYpu/a5+MBFJeOj885NaLzo0zGrhCqtg/J0caVuUhM9oLoyb/C1wUOOgEvuCn5vDY
+j9ES17de7Tn/4Kytd8DbNY/SMIWfpmjqlzIgIYOVxma6WsKCEilATDEwsDxpLhpMuNsBBFT7zw6O
++AI9X3ucb9v2DBuPSJap35vyvq4GiWzamu7HbaZxy1YgOOq4Cdk0ODeb5Vq0FjaGD0n1XwE65O/m
+6+Jx4Qp/CKHrfpRzEEM/5Fv7joZ5vLbt4FLrd/zmKfkr1s0aJagDm6b8XduVE7YFR25gTug3l7tk
+pA1Pa6tmuqqt/G0T4qB6cL3WAj9xqoCJvEua0clMm1nSeqiC6Ixy6X6EswpCskkmcS/HgNfdY+0y
+YlBFDw/cz/Imy8hGDFhwEsSoTWJLjqtvWeFQ1vZX0F19eVo9GvujB1F4SWc5z+eo5rtOk7mdw6xf
+vF9e6hTxkAGMlPf5EJevOC+al9VbmAPR+C1T6utkcNKcBIYQ2l1sn1RTBD+mTxqIkdVUXNlS+PKY
+xBQxp9G28ZwpkDGMy3O3uHSHqJlP1ibJC3d6Xx1MUHXXNRve8yW8m/Bvb3xxa2uxByc3Lsu3goJ1
+uYqKMXkqk3yDlTMpdgwm3wZ5tpXDcIxdG6mLwZUd2CKp5X8xJD5MQF3eXMsdWK9cFz1nYzD9gry8
+Tazpxi9zhuPjrCcDJvM9L+xmbzgtgvaUeMoDeRTPazZgmaCc1QXNXc6H/6XJJts7Tbf/Eii/eFYj
+i75pNQ+BlxaCGuDgqc3511R1e8263+8RzvQqPI2m0lHGFs38AKwLfBk/ocsXsK9htrOWdU+mm2+z
+Uu9hl5pYhMOxoGwPYAtJ5zIwKx8zYQmCHMh2jaKU91l+o/DlfxwtpzeJnf4vMsF2DaYQiOhcNslb
+vJr+PyaBzcO46ParDnb/sudjjhkqOe2vRSUiLQPPPz64Nckv/W5qYv7eZeOJEvm8HnPHN17qynzg
+m+XMYA7iBdNTQ7gHzb6HK4LTMxoeoO9CsiPEt3av9SaCv2abgtsorMfPplLyzY+Q0FIo8POXmkid
+Sm3D/DObWjB2HHt146XjMsWfKMwUyUuZFDd7MNhf4rLb3wLycCpWq+xyo5eCIsVxF/ew5VHTs9Y1
+iDDd6Ds+BNasj7gKJf9uT7MSgnGjP0tdQ5vczGhpgVgrpfnfq3445+DWbvP4FwoSIsXO6VB68Isn
+OKjLkapp6zI57TVw2zx/8JZwhc9Lf7RnbfFbtQ3S9BddSB5hanQY9Vnhs7B/FY/b+OmZTb6EeyI5
+u8XePfbdHL8Fhe9ul4kq1Iue6/57xmJ9S3xEvwG7rRK4oKRgvDuWQWrqcQOz/F8N7hNILq6AvCQ2
+kyM2jB5t50Rvi69p5XARy9fSGK6Otd/Y+glHZZurGRTrdTPRJFP7+v1y8DtXvIMfJpaOniGnIY0l
+QU4TVctNu3fzlGrZDCblFQ+/hFgb0I7DSvBRTUecNYVS951PP8EcCE35DIy8vhl3ghLOuUjcy3hS
+0U/Ryu4K/zpVTGMoMVzIcS9MlqPhgA05XwFFibg8xIHGQN8wECMqk7352wqx6Xtt5iQ8zXPvnYLQ
+UNF3kEirzBvH6cMZ1uQhxNyH174jkiRVQQsAMiH78Ropsw+AIqrquWjVrDM9d15DIKuh9ooJjfLT
+GXLb85KIaM3aVfuA96Rrb2RcbAlX4Vw9xaTwRmmr5yo6+fHinviN9U7lxqpz603iA3MR6+4svXvT
+AcLjdAPWSq8XCpXoJRLrWF6RGsnlWFJWlylnkbhISseaM0DAKDqMQcyWelBwyEiGZVc5cLn7CaJ7
+ctxtqa5hdo8BDViw+Wkitum+WkNutS4qkDGbZewuqgih6AiQtXwPcr1/Dol1hgO/obpZ7OyBflon
+Hu4GGufbLJT+StpGFmBBt/4bkWG7raN1Lg/0zN3dbDfRPDhEMczFU6IZAh9s789QefKlGj9cWM2U
+HdUilzuZe0V4iLt42L7ULpwp7dTMWyBioOapQ6lOZzj5yj//GgBYca7G5DsMqhGi+jjt68eaL+4z
+7Ov+YjNOyYuzm+UdMmLyDVa4KU+x23WvBKfLt6UX9Zitvmg/nIpbN3XouP/s8AMJXQqT/uSOIU9p
+Ei5rcxTTksRHu+S6uhiZdU+p10l3vymahJoFVLR+DuXEeNEF6LtlPgPsBuyrim1KVGlvj3Fc94ox
+h98+K0twAtHpOxRzO5b2Y5Y1ZagXuV10bBv+MYfeDPzVNh6i6eDsm72leB7oZbdmG7KWiV51ZDsf
+3OKAJvQpNhPGxXez/44UNmcYHuMaHuHRg+9HsbEO25oBf++YTEXL7GRiszvk2E3Da+7RtP95W+QQ
++8vvUHkXQbLqv0O+kHIKAH3wM2bMtDXb/+OuRdjrq0l6oiGi0wftSsIAx9E46rLNun0PHpZ6VTfG
+EWt3sMA3q6zYse1lpR0JkS/HWa8nz6PGwAFTYANudTsqBBrbPdXj4jn856a/c/2aum2rd6c97Ux9
+ZRbCkH5sG1wDqQXKysRNtdEdkXR+lM46XP5jId4uKcMQRx9CfmZ9aEcBW3TUSfFgNoJxUgYlyjkb
+XLvrIbCkc2ZBC/OOR8eTt02eT0+IKi29/dZ37u/x3XxWVi4c02Sr8b9XVNNgDV3z4u0yudeQOu0Z
+u379MHWF6x0CMiIe54TwRvK8ZxLfu3D1kKvccqEScCbPFaclYWT02pZ1gcejLgwE476r9lslFa1a
+wDUING1eAnvUuyC4UzT72lxXY+xejFrPJtXo/y8lT9WMs6aJS2YVsi84jCteqAqvTAF+c1I0omFQ
+nJfCj/cDwcQaKTOv5yKNCR3Ps3DJ7SdU3Nk5l3Spl8xU/fs+WsN/pZ/IhXOrmLds4gGK0qBpduek
+9kLthxGo48sawA1NXbfaJrIxZBMhwlRRm+lWY/jeyMayMaYLfwead48fVt2t5KcFGTrtOlDtr/Et
+ItH4B1Zk6yD4Mwohy3bdmfq54BjxgwDQzrZ8wj/qVtxNjSubL1CWO0NJmagX4MWBPraRSLZM0B88
+JLamcmK7aCxTMMg7c+atUZe577HXO1v01TQgmaE7RFSuY7ag8bX8kntPA2BlMGZBreVzAq9wT12W
+Lp+QfFxGGIO7UAgtQLZnFaNJbdGsH5aKkvdAHre6bFVJjWEKYYaDWUvz5eWb01DvrfqmhtboXnpz
+Ll7GXfqPeH/BagdznjBhdbpxPEIin273PmAAVhbB/Od/IgOs6UT/eMto70WXz68i74cGsPFQ/wS+
+4jrVxu5f6ybGe3/ryp+hJ8KD5sDP7/XWhRxBee+9mkaS12uYPl1EXu99wyWXQGwlzxi66L4cFtuN
+f6NOMJjfd0Pi1hKXDSvJRLmQ11YHR+45eY+CNj3Rqu4684tge8ckLf52KBNcZElpp7RZXFHfkla6
+k+sOJvVZb3G54fffwR5oLxp/RofMFqr18EcQ4uhkNKPxneetNZPe0U5/hG2prMt5cW6b+veksWWZ
+P3Zcn3O2zq65Rhxh+xYjcyTSvJrc8NYGuwyRZtrm0bob9S5/ZXfvWRESa2i47+LILE06RqHzNMRd
+PVxPeeRZBKbWBIciAtzKJIMYmItlkERlBSSsBAcg7ts/vqHfw4pSU2Waceqru5YMSxX5eGsaSMYe
+BdEkwQWXoMtcu80Rwr297UFnr0t0Sjpvu+HY8zvaD8r7NIxF/y8XrZRZZ8uBVtj4/VNtk2nN0Mur
+6ZTIjtAXz1bu40gJ4mQhLp+HifJ/5DiIS8Qn1kcWNuOtM1JkF5b0dxjYJlWcdawnmSraLiUbgT9x
+UNcybd1FthkPyfZullq8FG4NwHHbxvGzUznTWgNITqWLNfohJJr0e+TmuWfS7D6Q19t7DwNe+JyR
+XatAb/wqxLbu3PEtZ/LnnGt/Wx5aeLTtdR7O+54OvF7hiWXEoEhr8Rt4/Js1fGyniVrej6sEeOQ8
+iSrDYlt+dYrZLEuUIw2tGAHJAi5W5YPHNuxyHGcD4jOfkPgtVj6+382jqBgbJ3xUrlIDX3VBrdDj
+Bv1yFML0sZs4irOttjyxMfT1f7PvAKzfFjNd6zjkyoETOblZZAL7yRw8ktmECfkcEntbXlYSe/zv
+NUcepta9T/nXF8ztiKHx8oyx7v5eW+N+bKqJXfjnSlyz9N7/hNHK4JmQZ8JWayTgt6WJTJQ2TouG
+HxTRcNlOgj+5Hc1ASQu/NMgGFQf/0D0C1A5cBL9iMQT3tJMTbRah8c43sxPG4h2HmskU8qF3s42t
+86cRcvCOAl5hla0VKj9z5BwxPiqZ/x7Ikuuf1OpvXxYn1wcfCEILzUbTHSO2Q8JMDmaazyvZ6VcM
+fByIwjxCz1RLXXMo/Fw4WR/vwj9v7ux/OEFXveJSLf8uzGY/iPJ0y/MsTfs6AJH9Gfe+tClFj8PM
+H23uS4PFvbVJPKzjMTCJ+41xXO+pl9eEAECikOrSUc361oHuCq68ssvHw4wbhAeZxc5/vI92YHo4
+oBNXptko8XDeDMdQif/xyyt5PZE2gdxkO/mT+y2TALePcxDBa7ieomrHTVgtgSPoGHoxFbdFULd8
+ZpQBkVme1+3UL4vfZC2/3VXn9g5aMguZP0qv86PudopakU95kG2Mq/1j0AW2zrTT+M71njdjnhJM
+FHwIz6IIdUXszaeaBvYpUsLVWRIIsV1WY+m9YIclGcBxS2qDqP9FyM4u05nitw5IizzX903n64bD
+fe2eBUR1yS0N7SPdXR09OhNc9NMq5vZvpKmOsqpjWJ02ogi4z7xGv8yDDf5j54L5TKeWPkrHmX0c
++S5JMnRv/W3z9hs1ykoACc6ZNpkiiO7x6mp1iLmH90M5xwOHkggW1usM6RCnAnhLc86bIaqvPY4P
+Js/lMLtHOJXVC9D1jXFPsIrq2ONLkozzPMbKeg73zNsW3MOu2tUre10h2HDyLKC6wo84hJ23zylX
+JBrHwk3zMxGgKw8oPu5VuLY5aPkuCa9CFQvLQH+1zyVf5avegZuntk6qPhOKsy8zpQdHW3T9oE+M
+hIqHqfzN52jW0H0VTrm8se/B69ct+YAY1Wo7HUoZTxLqrsaKIfPYu5xq3r9PfAIckDLqELo8n8NW
+UWbxcnbeqFO3YsRAuAnmSHITJ5rYKhxmuECt65+bmdw3boMoP0pLE5FKElNPnZlFfRNsIG/T2Dq2
+SgtDMlHWdAxUL+INCK0OhvKt40gp+RKi5bJ3KYkOMR4o+bSrZrnZpNNXN1Rn4c2qnag7B6YzVRYE
+LaYaKgemNa5r3PHQGk8wgNkLHp4yCPoPsy18kMGviseWpuvN0hOw4iN6Ag72WOd/VFzojW3KPcIG
+xNVRH5F6x2utKVNOLTN1lTV6GxfWZ/3xzl3W/ls0IqiurRcGF2xfL9+haYKj45XLcMfoHs1rZily
+41Aawn+Jaav/NrTVn4bp66vUIdaJXJPok/mqoHqbB0rzQ2W0vJ+xe+AQQ4MlR8lsFsnBSJVtHhHk
+hG6u42dU9xyCS8m0nJtkjsasVtXET7FGPPpzrDuZduUkXxOsR59l49pXZ4jiJW29zn52BES7h7o0
+4pF6YsehMvCPj+L2j5TL+Kps70D+Xlu3ZgcK3wnOMTlStGyFrog8Crud3m2fIMATAMOogfR4xlw6
+GuPUXaz8DNxZ/vGdaHmUggY1nWIzfXtO0VGP0ATpQ46sednyASnp8sW/rihJw6ypzNTjWSGzmrBP
+n2BaozFZ8Oq3+sxdWH5Fcg1moqW33SfnaajCg8QJUx1yvkA3w5Yb8a7mPAdZ5fkVtmUyw9DPNYat
+9PdMZmmFH1imI0ipmy5m3Ikip/QrAVPNf8qasceFvzf3XUPledxMoZG1kHfbQ1IbaU+2RtYebNgO
+2RYpySfL2RI97jkXDNp4bP9q5ahPGgL2uKtW7C+euzlsrYhhfZHFVj95m3EZGrkrKhzXR68z/Boo
+00089/dmzoe7Vnr+n7Gj039k7OTLbMB59Xdjs+6j6Lf2eQoVJTYO8BpPWJX7r2Ww9Wzgb5V/J5C5
+y4u+K4bP0vS/DkR6EJWuxLjN58XplEjNknBfiG2pkZMQE1/CEFNLXRJzma5DN/8YFi7+hrSgBfWG
+z/vpUyRQTaBxJcc+XKs5G6a9+OPOLmYijaLzS9QokSuCfuV7rlqip9Nl8dxH66/2sQVMphldyvoT
+Rx1NyDab/yzO4jYtp9+neJpk1V/sWnXvPYIwD3TS2CoTDAaguy9+maQMnRhF7aEqb8tZd1E2Sm/k
+Hl75n05DKZcStEfJcLxxxNZcyDbHODQVdn4EQ47Fov412qdSruWGH20R7/Tmzb0fMOrmm6/FvR7n
+4oF1GsJzc7eTl547MwMefy1KvHBBQECk6pf4EDFUe2WoqD+cYvWCY+Q0zGXNWLl3eCa7MGOvhMEV
+/VqIKl270ZZxzmLeoPTqHrcFPMxBDLDBqdyRkg+8Amx5FDj23kXpa3vwy825WAXyO2d4YT9jHeQv
+AVUM31Moli/X31H5WYivQMy4wUajLtby1c2rIL8iknW97wYSY068ChxsWPO4K/sADjIKrBkKKnd/
+ZN7U6pCrYuvHGyE5W9JoLmZ1mBs57KkIt/yefQvzZLx4/jJyluOFS2bIddcgxVO59TmypAw+meOt
+HH/RWFz0Phv2zGKr/uysA84eK4W+5qNOWBsiryyzjZWrn4rnh7+B/PbT5LThP/jyTXgUo+k+f48H
+ujQ0D3K8qSQuo9y2xBqil34M8eqy71D6RccNJWLGM8wo7pqR5QLsMWF+t0cNNL+dQRxehHLvzSHJ
++0JTEsnqag86Jtg6x6fOAAP3x2kQm7pTSc/l2Q7t6vH4jP6VCtCcyLxx+oYeKlRPzmzr77Xfo78l
+fnAMmaXvvE37QFMUNKTuSFvitik8hx3DYnFyyvLQ+G88hfUNVvxvm0/NkPmdptqLKurzaI89EiG7
+xrmoPY2fye6InBzY9VAe65iSPTWCTjStkeswGyWrd4kpp4yPJN3BZQo74X92mOE4rXyu4bozzkU5
+DbwSDP6Th8nT/oNmAt0d8tVfPwaPW5OHT65fXgdqKK1VHV6bCe9X2iV99bpuyGXMpNbglh3slSfc
+eE55XDD2jWRDaUk3HylUjHB0nSt+uBGvhrLiRSW2wMj2a0DsA2hDZzOYigM37z5GlkjfV3/q7zqn
+sv5F3Wjn1Ak7yzOH66CyaO7nUuKaYCQICoh5QmOuVIf+6f4qiXjq4jRio9Rc2CRo0RvaKpw4gTyG
+vUBSWHQgJx952/iK94kfIR/xMc1BiPBh4lu1VtDMJp/x+C1LZUwPOqvCCK7MiD+XsQTTCu6Ncj4a
+HTX+CUoQI+168cf3vvbWn7XjDiKRC8X5UM/b8BwlrmhuMPpW1zWnRZtF629XhcbMPwK7TFWkEbXX
+Ozmk4pqtRWTsaF/rT1nK9QeNj791VJNKDsytmvh+lC0DYeiGO/0A+beorl0cjG/swengugz66g+m
+g3mm4DJ6wTJTCTwjllUWlY0aB9ZFwUhtumGddro1GM2XLGbctV9AR9RVeY/War0XHBb7F4WXwQ9v
+I5lPr3OhWAU5jkRwRZcCKf+TlO/13Ra+Xc5o8nF/SOiK8VgsgnRI+muG20W0i4+ESDRiu+IwuSsX
+lZS4wcqY4rrvnydkfIxVTuV8CewR3WGvVJAfMYckWKNoTduDnPAIoXT/vgBy2Qgr9LrYDFnMnRJS
+YUc4zVD6kpe5H+LHffFXB7Fy52OyoTyccdqut7uZdsZvOyfDAWFkeSowTS/oQ64amGnG6rUiHsE/
+LH0/kvqDC5AiU7Ubs+Ip4MgZXUXTH2MMcbGMzfOML0WUColB8Nig3xLjqPQe5RcDs+WKkCIK3Kx3
+PCRDJLguPBE7pslmIkotPjG5V9xNvoc0J7GRkxk37rTL3Wg8RCtfFM8Uj6s5liSoXhEm4zJhcToh
+aI4nHt/VOqQqDHW75anaON7RERn4XJIKTjON4STC27XX7megPMX+cEeMJmmrRtlD6xv5X7l3nIGi
+gkSTCr9lRpvUeIDThcP6aWyG5g/GRF8f6ertqynKtrwUFN5oG5X2H6PCI2HLuponcg672UU1dN3b
+leLmc6hN/ExccIL5CFJRfmySnZXO3ffmuzGuvL9l70XBoa6tc7kHRa/vx6QfH1cA0w7ejRgHe/9b
+2re5r8ZMOguuMCpyweZ1F05vXdnQ59bEgnLIY+LMD0zG5SPHARoSO2ZYcv2uEQLzm1geOKZ2k/m1
+wuOoaxKN1uF/94CcE5P2Tj/fcjSiE+Mjyt/ZxGguNpJV7QHDA/IgNp/hY2M/bjoMGN6GK5gpzr/C
+drF/dgQzvowxgctV4oTQIzlcRHx0V5/2k/Tz+b+28KaVgloVr2TsmsetHA03jA6Lz2Hetn9FhM3u
+pMZEfSVc0uMx5MVCiRjqeCCCpo7whW6UnBlPPGK3LAXvDVsMFH603uqbGX332euoWlOXaPhXVFxm
+NOs0b7d9vyafZL/g5kExDgZUgL3GsuyL+L+mbvevit6KT+U2eNqWNjIyq6s6mH/lvMBkThU1fyuy
+XYH2uDvr9pJJHapn9bvTMZkEs2jX7y3mE8fhxy+Q7a6mdfPm1Im8NeA9kKLEZVQX4zHWCbZr7hZw
+SnEh9yJDkB3uoI452yFyQucmKDpgA5W7Nv2Z+lG9DT2nMkUc1qPF0xz9GB7bb+ym9QN7rTM+w8pr
+xRFHeP4wcz6VGWW+S5tW9cuzh1f8j0a7eQlCdATJ7XjT9o3/VDe+7B6Hel2I2kkqs114sbHPUzlN
+xKDuo08MkG7m/Lz1fv20aH9i8rRuLK1szs60kdqF0NTdi1V8pEsS4bGSPe2inf6PvTNrqhvJ9v1X
+qah31dE83DjdD5L2AAYDNsbGLwqMseZ51qe/P+E6p9naO7Yu9XyjOzqi2oWTTGWuXLnWfyj1ypUb
+Ts3Gb8KB+Gj1VXaRqYPcQsftVdOitqoRHzSl4Y8D6DzPRTgVgoPWWo6iQSSN0Q8zBzixQyKj8647
+3jgAunCp/zSAm3tReRrwqaVZzCXzqbV7agCcbAQBA7yhEZMffTV49x6Z/k9EoeYy6zj0KoGAHHAD
+FUd5hA8C0iOFHvRYhgMXedVI1q5M+pguKwyhdD+A7/zEW6XA1DiSa+DzGuSgXppKyakTmIh2LMtJ
+AsKEIonredBkyCMN45baNNmmBivgQ1QBv3ND7CVNmgct1xPgGuVBHsvwx2CC7HWSxCDLhf1XlU4p
+mt5tFqngjMj8SXJpuwbxNldS/bOQygB5WkRDbmtBaianNL22t6G/gWYqDDG/j41w/G62uvRZp6El
+biRvEgU3sCyaE/hC+aETVympaSIo2Z1kNuYnnBvzR1GoNQBLee7LDvGQ8iHOcNkVlDQhg9dcKU/o
+yQP4BI6bXlQQr7qNhO574/D7iPcenOfLaepzMCIUUH/Wceg/ylTTQNSWQxrSiWWL2bKSCiNIwW7G
+XQJwAxwABP6rl42B6oJImmjDG2axA2HPTypg63LuPbpvJMdA8u1WQSdt41eN8bGJNGEgVCeSRu0v
+ir5VRRzeW15s3dI2pOLSe94kzAWuIbdNXZBFTDxU0v2RyPZE0sBTQwZlaTc5ZAcbYpX3Qw8oVWxr
+q4xUdwQLYYHzasZLddJTtC7E+YaJxDIJN2oXUJZNQHQoGyk1jZv53akRVNrpos5rv3K8tqO2h36T
+fFV3k/rFj4liNgKXIe5DPEu2ZlWQziDeXP3qIfxdhWXayG5XifTLQxNWASvNhnS0pvQTu5tG4RsE
+RL7xMCKJboaTdK8MBlItJbhLmdIYKRoOOrkM8SbOrLsm9ibN5rEekDR4ksSBEGXhSx8q0xcv7FoJ
+QPhcZ0YMrn1So1opnamnDuNMOFB4s67gSMONmtFtOha+AHyWZ7U9KoZ0DV2s+mhaPoBjQ0rJ7H3V
+aDCKsop+INLTnpfrkVbvNMS9twUoqvr7RKqtOyELUNGwLDr2H5Sup5tBO7x2PcJ+DcWCu/5CjlRL
+sOsGH+UmqwTeog1t9w2P1SyChhjl+Z08SsACwIzVkGg8kX4XHLl2Uw7BWLiVOEiqY05QoJ1BbNun
+TumFftO3lRRtrcCKOVOBpZNpAUCdgM/5fuRKlATDn4NPYWbTToLUOWkOAZ7EbIyBXFilHF6iP2al
+130XmrdaGCelq3RTAk0rB2N3A+WHpnYLT4HFKJX0pxRnUr0dg8kb3HGgZLX1AxJjV2IVK3ciiJNb
+RHSpWNikECSqQrL3KSwNcokS6wsBoGdHEjJyVl+SbMBMPYT38SlvRhReZhuAawwRmm9gZlWakHmt
+X5cafWdHmcYCaLFZRGgxqp4E8pbIZQs0Uj5KngTkZaCSChKvB5btJvCHfuZeMX7JEym6UUGlizNg
+kNox1ViDh2he/DK9jscfdV1qhVQPybgijYZNYyTidzK+vnF4omSkoF1l3kiFUko7TzWn777Qi9dQ
+TDvxA2Qy5WevScpcnEmAZ+Il5F9QGA4m+qNidgO5QJHA8CttQJsdgwMHEBAnyhgi8S7A9CB2clXk
+g3WiqN23dUVbuWx12ruxWFsXo+A3/a7ne3+euMGHvUo14yKienLXKB01JDTO2isAEdySOeiTj2QH
+XBeJWOedPdUUMXZmWFYUsGTYBJ+pSSakIHkng5fKYvNOT3PAsFw3/k2ZgCS2O1b5Kwj17mZ+6AHF
+ERP4YIKQ17fwJL3nuKCC7HTKwAtDHcwEmAiWKo9WMHKY/SIYDfBZCeWKNEJYd4ManvqcUGxDGVYu
+gvtAzRpevqJVPqIzpCcU2bLk2ZfKChSEF1NSgs2dFGDSs+JeykEAEGTBX6gamsd2WGNI7nKKx+/W
+qE8debwCFqSnVKuBwiFtBCetJp/UEC6DQxdK/6GZlXHHHVQr29zz6XOzdauN2PgVKX5VKIUzR+dx
+K0cUdzbR0FDG1swJYGRgpjczBnV0g6Ecrslcslrf+3S0x02gSmaJtFwpXNcdt+Y+znPlwqQmItsm
+AvM84fOhkG5qyIA/K0+cbvTQTBq7B1jR7puJ+tst3DMPbVPByFmbQNXyDS5ejXE1NXpSPPAuEB4E
+i8IobaBCBJ+vR2S5TV9Ij0k2qSI5IM+jZ8uPOsHm+QVG0ZMgTe2KEtT4VwPHUIuWi5VpBAmF0hg4
+W58iPACgcPwCurTDb8OCurRVCrg8dt6O+NCeZ1zPWgJvxQ0wD0D6E7kGEZEzqpALcncijZpVAvyh
+IazK34U29+w2LtudEffDrSAkiL0Kns+na1o3iVtpd374JeF7Hh6fVuj4JjK2dMEOudZwWKsG2Epq
+Q73iOZQAZW73IihBBVXb4oYehWVPmup/qIYEWPD5wZeuYpjLMbosinQdFX3WTzkcHZ8wXaN1l9mx
+x5W7qSSPg5RiCbiJeVWEwJqoovkws+mfh7yo4Ihu4gy0CUkMBe9Sb76t/EZL7vnyN1pIrAB49soq
+5XP4uUocpoXpRr4lO6RKDyWpMIGHXngFG22TNL2Gvpc57rKMCoDc+0DDR0oO4EmslZVaSgC8/loY
+GM6qt5JypCxWDkToVuVJnKU+5Va4cz7AjoRqZFzneu6eX4WlNsQ82qzwYczqpmBiFjIpRa9mWLyD
+BAEObP5QQ0MBHgddirRw0IYfmPzKKyI6p7YhknuSrs17UNIW0hcAJOs8runDQweUb3VgJqS5Eljc
+RhwuQM9ZuyKDu50r+vvsH2Z7Qx2ksT7vQMaXFjvQzGEggn+h3YcQHpQryr9h8SVVuQsuqATR2j6/
+tMcTPRxvsb9GXYCYUhQQDzOxn0VVx+uRcT+Ax1DAipeNW5pl+cnSEn97fuTjnc3IiM9oiBob+FHN
+v9kbgch61HIpVNnZOCSJlz7YVi7eIn+nVsvremISyLaBkUER53AUhg4Vq+REK73UXGoz9M1MpUua
+8v1nA7z1yr45PheobxM+6B7TEORrHg5nqpZnpQI7tWq4zRpKww4Vx6+Qa6T9+eU7PhMqOhsGTuS0
+e9D3nZf3zfJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGIaTYGxHZxMaLEC7tMW858
+EQj9szdS6LKaaK4kVkF8i1qjuaIzcmqHYJ2ApA9aXSIWdIdT7HGEUOncEo2rlveKNRV14RZG3WX/
+YCtiQYQmvKSqfLXFQCFgcjIK1nIqjRKsc2OBORrKlVFOrR9y5RLgKVxQwMQvpmOA040DRmlACOhQ
+C61pHwVytRmosdLBpxZ2fouc2oyWaIEeIC0jmi1OmJ5Xmj+a8xaROuuuzxAGcQbfN4RNm5DUrESS
+pUjRfNIsxRBZRRXViKVNSW61CTkwzONK8tOnkIYe+NAY6MpUXJl1NtsRC033cH6KJ8IXFwMiZBKx
+Epdn+XBNJ8+cFA2QqI2mAIxOyfB29Ui9VUmjbZl4JlUIRd2pCoDHleme+JqIwNJtRpOJ4KIuEpVO
+DvPALDnptdeajzLE64i7WOr2mJW1Wx9+9Ob8VE+chjkhw5pFkbiSlqGl7q0GjF1CLwt4qKuhbLlt
+BWXNkfzEVzRkFN10CZUipJ8X00Kuxo+y+cx5ciwNoN7jOtopdS2JW6mZ3xJSDSUqkNrIWpnfyZG5
+CKCwYRaIXvrhp/TA/Q8NbmA0SzrxG2yrmPpO7IU3I84YPwjtYF17mJzeSiA9cUoYTiS5QOsaeNv8
+e70JpBWMdwOCKesaF8NlnYndBiFY4c6igLIS0E5MEfU/Bf8STsrsFH44VJmI8tRrKVOE+ucKFciy
+Qavg3Yb0j+4KUMrfYslakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eLkBTevUct
+IB8WJhu43qCBeTjBCM455SQm6KEH5FoNMKa+1Nbk3o5Pwmy4IOKxqiH4pi8VAcXOxMSjxAZGQD/g
+Ju5j4HxB1K1kYidGmaXx+A/BEwX9RfRsoaukmWbRizaAiBZSpgHWCfSVXX9iFOwMkZZHQlEWET87
+XLFBDLqB7B2MBZiR9KZCWyd380pogpVtfmogEkrE7EXuOHbC4UA0lFQ/o3xqTz3CpGEqVw54xRXB
+4eOg+OooilwW7vBkP4vZyOQr/ZBR42S68SWxMxw3YQ38oxgg/W8gWBfj43u3HFq8eDWCUNdmZ5VF
+2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2uXo98q1/FJS9xq6RjmATGFV4y9dY0
+2sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuX5/BRPbBCmiIsZ
+lwyS/0cvb+TxIa2wkGOQhRB3c5oLeTO9f78jyUNdTFPmqGstdIatWofiDufAbhPRuzUH+E51FI8r
+5pXHaQGVKI2bxOCqhBG/OLueHqA2NatnKjjbAdRGlAXSTP8ZxL61s3oTCm7sD3Tw6ibdnV/GE1+O
+bAu5QA2rQolSyuFO6UIxLEv8SuxcV/1vMIC0bzDz1Hqb5Kh22HoMomh7fsjjawVfCpZybuRweS7v
+7KCXM6vHRNv2lGzaaYCyvicCDckrQeZ1futB4JXsvAwo554f+MSWMVH1NDmAJudvKTWL7SX5K3KD
+dhc0wsdIU1O7Lor+3Wks07OQvZThW6H4vbi/8mKAym+C+7ISM9tBa/TQeBMyg6OQJKm2skFPbR2u
+ZoqB84qCmTv8fq2CIxYwVZ6l5hDukPYCWpeEAqL0nhFdI0c4XmvU7HYKufX9+5fTYBkxGzHZPtq8
+td5kIkZI6drXNcD/YJluJSSfNjmSiitP1FMb1JB5EpNCarxUFykzkk+FguA8wGQ9NuwavMJ3ZUDU
+E/htuYcmUu/Pz+o4/SAu85JG55ZXD6H6cFYTaio5DEHYPWmgAY1UfVqSOt1ZoF4IZa1syZOz46U/
+ZyD8r7l476NOBTQUlQZUXDx4BLgD0zSpc2tI9nGqifWnCfbPWjXsxKCzUQpvH1aUe3xxO0wyUOVi
+gmsz4tpGnwoa1wgWPkfbxk9T993rCTQBuVLeqlwNyiLApH0M0xZpHWhRDQQjJ5yGMvkG/8soB1ji
+Yy+vvexevVEOa8KzbQqvK5N1JYVYfMIhtQJfpz1hW5y9dBN2jXjdD6iIWWGT7T2T9pEUlvUuAB2J
+D6BAi8r2R4OmYNrq7cr+PRF0LMRPiOuKToBf5phBDzoTh6gcfE3lbzDTBcbnoxZ/fpVPz/nNMPO2
+fnMYI71JOtHDAcebpkG3q3YW2MIuUtWcVLGaG3azcCH29NjMBNXaIqEdjXi5iTNPJK54VZ3aX3zx
+3+YKhIfFkc0RlPMMlSn74McdFcTqi1KVMbAw0b/sat5p5yd/aokpgHOhcH3Oxm6Hc1f1CX8KjSeR
+oSkl2muwiIwx7VdmdSIwkLbRDkEgX+FbzrN+s8Kgg9VkaHksIKNXPnqRTy+xlP0nzLfX8oGTE+Lh
+NauUg+8VFwuIQjIgAYmso8JI3PUqUIE0a4KVrOPkKBBLCDzUPwjihxOC2+QVMtapWAX7oblFqkht
+XZ5bsKDPf59TK4eFD/crxXcKEItcviLDNyG2MpDQiFsBdLpr5J1xV8Aa/vxPhkL82Zqza3zAD+eU
+1kPdWAIfqRia4sb0moAupwmUF0RRH335B4PheEUZjjxbWj7FkbQJUIgm6+1owmzbtsH8EpS42zVJ
+uj0/1KlvRZ7GLYgkM9f8Yl7gmFS9TinfKIqW3iFnYX7Uzc5ciVXz37IMnAglG3OJiBtiqcecJZ0+
+hhP7LqvBTtoteNELgmP/EFCl2hYtjJ/z0zq1Myj4AVMEsUQfa3H9KQ3E8VSnfYamVuZEExS5KsIo
+jOQ+WPlYx3OjZKKyKbj4KGcs59arkpXU4KpnRnW1C7zyLjerS+By+l6swm5lYidGM9FexkIB35cZ
+cna4D/tWEXAcp8Wu9YJ+6aeWcI+9E/QdqZ1ukenzVpLO4/1BdV3CPIc8QobtujjLoagD2hdyiO30
+2R8LaRqpu8n9p/Of6+QoOB1yjKln0Pc8nJUgdPowodAEqg0VVrXzq4/AONd8lU6s3ZwL0WzhhUDh
+ef7zN4GWkj0MKRNsfdaN3a0keTNsAubvpZr2+le59JJf754WW5BKk4xiPV2exbQUPalCP+BdgMoY
+GXsq/wwz450+1VQXeBSohCUCOpfHMq+UBQQnsqnjjZcrKOnW6MdQYVYzBzgGJDWRb7Zymo+/FnFd
+w4KThyUp5rIpWHYFLJzOAtOXlO2VMUXetdj2Sv/u6A6tQjRwLzeI7rK5iO5mCuYHEEiMOkaTb9I4
+fZlmuFmlR2tWWEcT0hWJZ7gh8k6WcTBfHCrUfiuhFSEjSuUYPqa5UGziJnh3jZ5ReJ+STsyGCUzo
+cPsBBgXxbSA5XMW9UtpxZiKH0499rFx3bQF0L6otgHRw5Tn8qF2Wq72yU/OcwwbPciIIXcfD3yDh
+uTOTfkEwVQl4mbBSgis11NL33v9cJ7PPFhczNzOh8XAYEYn4Vp1reVDDTNdS+pcMoPH+/Nmac+2D
+K4Wy52wZMvfDrfm/h4NUYVZXTa1/b+EJF7lwp4f7VDS2uSTbuN6Q4ED8wrNhZU8elRjmUSEcUdtV
+Z9GgxTcET4hi76B/H9pLKzCv0m4j556T6JE7Td/OT3A5FAVkkQ4ERjmUXWFBL4JHiLbEBDwUZrA+
++B9RPPGctk+7DwKa6xsz9QCUcZu65wdd7pDXQenz09eUSTGW9b0I5SGtz4fARsMjvoMjkGwmczRX
+Rlnezr9HMcl5FWU211ucNxrRPpLATC2A6tQDLBHmeixKSg7c8jXQxInBZsMQuGh0vbHJWET9Ks+x
+KtNmRGLgMVZfmJ+40Lgxh8Z758ZnXgdDLTa+pnueMZUMBT+xh8iQejsEVt6bss2jUP7BH4PiGpFk
+ERfbVgpA36PQSJDRdj2dYxpuk7F9706gQwsTgjhFyYkiyeH5gnUwRZoOQdELi4JXbB2gspi8N/LS
+/jkYZXGKeZCgCzDweEQU1LPRznoUY+nx/EyONwDlCORZTaRdKCoZi68yJEIj+xNyahgX6T+lAU2H
+BJLurC1hrNklvW7dt2GJBIPBKBHQMqHJtHSp69FJUMeOVhaddJRkyBkFCNtGfVUJafkRAG6+bfS2
+3SMAKztDGMkXKOUmK7Hx6BTzRsb3RALBZc48zsWM0xKV9TQwvlkhLIASqUVn0OO1bOrkIKA8WFPa
+Nrq4HATpF6SE/cd4LFNro5SKdpnhV2ft3vX1ZlSMykOIPgoD4YGyiBVtkgxWoA+9jSFeAHq5ML+g
+nQKNVI2ClTfeYka/hyLLxa6VPjaWhodbXvGMMM5Ibm09hQBeM0G3TQTpfUHidRT6P6+TwQZziUaY
+8hwpqSyAbRNgxVHBir5SxGmta7eE8P0ehhbDbMDHc1VbrBvaOR1NNAEofadV+2goxyuU5NqPWutr
+u4AHM+yuQYOMCYerjzFSgSzd+hca2i0On3TtoC8O4euvo9MPmI8gCfFRPdLMZGT0kIvIxyGxazVO
+PgxIGmxD+G0rptyv2LA3Z/B1LKByMhuHBj658eF3VNUU+eeR7xhE1X0LwQf5LGU3efEe2eK9llff
+27D/3kpY6Kje50xrvw20oUeyvrKJL9CmX6tTzLFy8QtxkZtc6JYMlG6JGIJmATPXRCZflCpLeUnR
+gI0vs5pW5y36mVm8jcMplT+hCxc+TyGK1CuIpROLP1vZisCVAE0gwHe4IF41yS0SoJ0NPAwdXz3P
+XTDEhVsGUeKeP64nztDBUPOv8uaNVUqjHIzztgsaXbiI2RBXJKPt+08qo1icUdBs8114OEoFtdXL
+Es5QO/nBVrYGYVvI6E39g7nwrJLoA9KJ0Bf7yMJpIUF+jX2UR9F3mNH1R6ET9E/nRzm1OYB7cCSo
+j9DAXUQdUBd+0aUwq+NQinbYtgYGrBDJ3/iq31yJBcoOclsUl0oXdV/ePzR3FMgyAB/HBwV6dSb1
+KfRCheLc9SBp/RPeCMIFdG/tNkVZDvk0Xb8l9q/hA4+3CeB53ltAlkimCQmHH1Do6e8IVYSGh6mW
+11Gc5fvAqtdaLsdLa9IG5NOJpsgDb1mvD8Sy08UiHW2oeZ9EXXvqVPPem/TLDhUXdFubvaFW78O2
+EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYME3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6OH855x3ymGY
+MSXuLUANtF/A1SyGBkEDoSxmaFMHlK0MXrTJi6Dc4HcE4aGp1ioPJ5aX8VRaIeCSAbAudu4oTZ7q
+y2jiIIQcO0OW63srbQV3KOJiD+HzHsG/Yo8m8ZoP4HE8m/uCYJWAl7J7lhXzAM9BCNLoLCJsJDix
+mAturNbWtkBnayWenRyKdztkUDQNubUPNypyQr2RCmjlZAn9eSdA4yC+CYsOnbRmFvw4/wWPjgXW
+e4AqdJVdO/fsF5e2MEChNjWIGNqAhIdQIXNVxPinnR/laJ/MgHWGIIACVuRxeTgnywN3NiFFhV5e
+atabsQ+izE30QPsJRcxEEq2I1uyGj5ZxMeRiGZUEHqCJsYED47NwJTV+iQypcdMy6VYmd7SEr2h8
+oA4kWPSv9cXVEExjIKKMhKToWLYXSJakDhShbGVbHI9CaYNuPL1OblUk3A+XEHHRLjJKyMpWXGub
+MugmhJv0aSX3nf+Wtwea9IWDxdFik8smgqSHo0DQkrB+AvHSep74abA6vJP89mJUjM7Gh2j41OVr
+HaKjIVkx3i4zensGby+ffYlkKINSw6cI60pyB2TMNcfKG+FWQmDpxjKbWbZubDbnd+T8+Q8mytuM
+TG2GHzIomMvDiSZD33ZijB9Usw3t1uk3+U65lt1gZZhlM5OYcTjO4tohYWz1MmGcwv3+kLlYcNg/
+L2+fzk/m9UlybjbK4WwGvQ4gADKKvANYYGPpsZE+ovbiYoPiaBu6b/aHyr5ERd8ev54fe/n+PJrh
+vHHf5F+8oBO1mp21hL3q9A5YePvZuDYu33u1LldyPvBvxhmSDFmIjHHUO29Xwq5/ANd86a18sOUN
+sxxlccPAyo8SYZ7NtMUixEE/0MmcYuUsHz2VlqPMZ+LNXJSwktRo/l7X5eZH7Ny/aLunh89rBpqv
+Hr/ntsUi7IJnTkYpZJhyA/zUQYbAfkBz82ZyjC/IeF6s7IR5L58bbhFyLYwrCR8M1zs/0H61nzP7
+8pfz+WFlmBMB4+3RXb7P0zqrDRRB51khhOVQL3KwDnJMV3efdo+1+wXJoLUPthIuljyoxlQKK5jH
+7FzedhywcPN1sp+/fAzs29p94llgo7m5crGsfb8lxl5Bq0NO5u83Oj+mrbjDGGtTb4OP4YVnJ7vW
+XlnY+a4/8/3kRRSJVaiUsAznSQZOyn9UG+FPB422leWcj+q5gRYhQxVwJApoXtpShsJ358GIyKv2
+souNtTmt7ZVF0DCNqDaz+aCZ2rfW24dIJhcynmdZjCLJWs/5tdR2bl6L4BGZgqyhO/Z7AZMb7Bpc
+Y4sVnPMldEP3F9x7ArFo/1qb5Wv6eW7gRTzp/RRLgZKBlc/yZf2QfywvlR/eLRVH1LeLp/E+uwxv
+lFvtfmXHrC3vIsD4zRDq+bxjFPYMAgzsz25Plud4tuEUm2zju6ZjOmvQ7aN6yyJ+yotIM8pZnNTz
+waAHuQ33knufOpP94tkFy5tvZXv1Hj8VAOgJAuafSXPwbA4jdh2baSbOWxYv4o3E+VBci8xBdawP
+qYOT3119i7D1rtqpV9bFyiqfiqtvx16sMrIyY0KPhFzF7Tf6Q7INtv12dONtfSHv18pmpz4pLQX6
+FuDq6IsvHgQRetXRWBW1XSECL0qQcFGpUseXNqvcaLo7P7VlICDtp/RJvUNRAPuDWzhcVb0JZS9I
+1MkRlEbZIpOEuLJUhVitjdNKzJljytsjwlAgPOn1Q0UyDeSxDodKTFkf5A4DLQ+y+ofcyjJwwUqy
+EkOXqzePotLE4jUwk2aXpRUVs2psIVE9aiDn3qA9aVxWXVI74iinN1GRpl9gNEm3715Fijg8q0ja
+6YPq8/55k03k6CVUdYFlI76TxQZ5VmKq2qR3qNYna3tx+ZJjgrzhqN0AyNdgYS3OAaY81WQZwugY
+WZdZDhIY9Rc04JBSqrRcie8TqWvQfU0N5GspbteCjURieptEo/egNVmToyPQdd1FmeryHYCSEquh
+KixMuxCxTzq/LkfJN21X2mO6RLUJaBjtq8OFUfHSyBrDwMtS6jqsR4TEH4mGSNcG7lBj94oatNYN
+0Raj0+6povn47NeWb7oSDcJpGxWKvkZ0X+aX86+ksD/ocKH4ip3R4a8koNUUYhY/ODgtxOgNK7KN
+J0X6SO0fTYK+6MzLsZC5dsNuWEltjw+bwkcDoUZJmCK9sridEHQV+hGWiFM15vcS/MaXBg2iG4Q3
+14CiJ0aaGTU6nXiqCsB5Difp17PznSVPqOpFOmgKOE9uPkaIhtKqejn/kY/PNVVMyl6oB8DZEJdd
+ed8QhzRH0coxUMTZNNWAz1Ppr3RQjh45fDbIlQqoTHrIXAHzjN8cMZ/+hBJNbed4QuDZA8aidpT6
+is2GSi/Ddso3RuIlG1mM1Gsa+smLlo7SSgQ7Pnr8DkBvZtYSSLNlsW2cut7PS06XiaSzvvFzT/is
+xiKwQKtBEucCFWMUXd69unMcg+gD2keiWH8471QLUiVPPPj2dY4QzqjG2zQ1lP37RwHfPPcLgB1A
+mD0cxe872lNj1KH2gq0ngkiIDeOp/e71U0WFiUgU1mhXvn7jN98wHpXYaMCGOGFfZNeJWktuKCBC
+0yMi6qbt4G3fO6sZtgGokiYIO0dd7Bl5FOsES1pk4qfQv4xyYbrwsGZZeSQcBxRT1qBuMim6bke4
+Q8i/dPVGs3awic1cUUQGJ0GrfS+amgBoQ+sRiB3q7sIT6r9RWf/1PPwf/yW//X171v/+b/75OUfz
+aUaOLf7x39fhc8W3/9X89/xj//uvHf7Qv2+6l6ppq5c/rp+K+o9tm/18asI8W/7MwV/BSH//Ju5T
+83TwD5usCZvxrn2pxk8vdZs0r8PxO8//5v/rH/7x8vq33I/Fy7/+fPqZsjph3VThc/Pn33908fNf
+f7Il517Pf70d4e8//viU8pOfXyo/LAhav/+6Nz/z8lQ3//pTUPS/qOOCkqNQD/QAnMuff/Qvv//I
+/EsmHJMrUO+FUTAjRbK8agJ+zPoLmgFqbJwIwijQH7YPZ+z1zyTpL42oKtNioJwKsFr7839+v4Ov
+9p+v+EfWprd5iIHZv/6cT9ebzIib8QARscz4/hEiYm2MRbntH2I7fhN1lnOZUWAm6AvwREv841wH
+M6YxogQWJ9mswW7lKnCmTPiZ5Wb6va0KEUGs1K8eVSPU4aeIPRDaZJAbxKL9QMIUEcEpYY+uappf
+R7QWhctaR29Xxs4usrUqiX9ZFj3HT0TcctwMECU+9VmnoNUdI4uZPUb9ZPoXkBXlybX8Mi+v+hjT
+ZCezUAj17VATEMYSQhNZncJEtNTJSy3+CtTVRN1OqlJtByqptvZ9IGI0wO+Cr3gp5GXroG0Jl56U
+rBnwO9eUZC8paVPZ+FhF7UbFb3QCwzepqCdWkH5agH+IAMSNdg/stMCduZIGXkcYlMkfOtYOCTRs
+AX+KPvLdgG2rflP1VXgXgU1EKQFwIqZehtRWzuirwlcQ4t7kjP3UlXszMLPpMtNRFUBZL8V/OIhR
+zkNYqe4GG4/ekrlb/TRedGHUf8utPhycMjOFzxh9RxeyhnDU3MKxrpEX00unl0CYYV5nphddETfI
+0yq18iAVRYUsFxS1fJN1NUq3Y+AnT3qtb2jRjl8DM8fPubBCJD6H/Ekq/OZeQgbbRypeHD7XGA4m
+uwjPjnxTZXqFOuKo6uIG7SEZyjni2zhnGkLwEQP0DiZLlydf1LFBHNcUM2M3pQj4oDc49mjyln5/
+peCBjgllELY8v8QWRVwzbXJ8Kg3/ocG9yAeDVWGLaaaq8nXAMRsJYjLgz4jxeg+eEkV4R6Mc2btj
+qOVXnT8LxJeNMl0qqDx/LVILPb9oqFXoRapoPSsVWs92nTZJtMv6ZLpT+wkeStXjLzN7J2sBApGq
+F7qKNEqJU5PAfK5ToX3yWwkpDWmQkOzU2079NemWh1wrqNzEVswef7coxeUeBbha2Ep1m85WOGkT
+XMHJCW0PAgpuU+SId71m1qXdSaH+cURjvLIFcfLVD145ZZg1T6hqO0MrtM+h2Qfh78Tj/98tb+4J
+gL9zZfjM3UJL7+kPh0sNcCk9gf9cMX//6N9XjGr+NTNsjBlrDvOVu+R/rxhN+YtMHzoeafh8w8wt
+0/+5YmTtLwxgkFmCsktOC6PrP1eMbP01d5lo2M2XA1mT/J4rZk513oZlHaICl58pmtxXXF2LV6OK
+untdt23qZtB3nQgTx3u9b5T9pOTd85sV+vt2O3ebvQ5lQS0BjYZEwfKB1RD2GjUgWPAcNJxO6jQn
+mayf/2QQLhp6fjyFrUVqxwPONw3ot26AbNomQOjXxUVuWmnsk5QerRuIE4A8LB4YmqNnh2DFYiIX
+SAGbmS98GI0ROxns9caPOFcXxjUC6HhxFJnYpo6CJK/pTr2HBp7QDE31QWysmWZaef30E4iA6OEy
+K1Q0x50GjVvBllPFoFeJdXiK1RVoesvBdC7aobVuhttw9IbMxaMLrURBFDTEFNVBMFAb90riCM5A
+o1toifQi+77ymIV99zPxFewDsVnHT63UvUjB7iudaEb5aeO78oAHxR4MBoLxjawKvypQQdd5K/HG
+xq42xA9CjtoXSA0hCqZgFiKnpez1edBxT0AYU5O/ZGbuYQ0TJxEC2ICmnWHyqhDX4BSXhzzD49FN
+5ZbeUChG/le1lftZDLpHxB5JFbEmHGZy6IIj1xNnIqQhCCmqza8yVjF598xUzJ0JDcsHTY40VGoH
+XX5ueE9fKgJa3rz65OiJvx/n7U5qc+yQxLqiniwYIaowmhzIH3IfY1HRiJBFNgpDexIjHWnPSJaw
+dBk7k/djjrUMnMYYX1b+/2y6zvwOUjy0yuwKmdFhwOWzwYZJNSaE8EOzas19KOhDfDXWJQrXulHV
+aM7OpJY7iQtgcoJM177jBifQ/RuG6i5r5FDcl5rCOoudUCuOhmTjtVim1YMntz0SieYY3WMclP/I
+gpyLAMdtcYILgGQ9YsdJITltrQ3VB0nHzdxpFBRFPiBJA3l3MNToBetq7wvKb/098ucqzngIODUT
+Ey4wxKzR7R1tzLOrTwP69d95EUe3WjrVg92EevKAlnz5XUaVSHTkocIKhseL5/qFpD/EADiup8ho
+PmRpaEqoq2ftuPF8o73xNLym90XQmN+U0NJ/VBUavnZJlzh0Nfh4V1qkStdSrvMl2iKu7y0/iz93
+tWVc5FnagKcqtOqb5aPn7AYGvmn4dQnjXojx3+T3CKrvWk0RCSm2kavNahSUH3y27lPX41DAdi2q
+YIcVJzrHo6GitacJU/iU+9TdUCsF7ujUaYI1qT5FSscjDCVWR6vQBbWxmvYvaAy0FP9J/KHrotmV
+YNDUDnc8t7rRkeQkhxU0yUj2T1qDs5yQ9OlTLQ/FXZcb+s+4aLz9APGvs6tEF74NQfg9R8mUQwYf
+8atntNSx2lifBgDgOpwSOZQB3Y1tX98leMkkqOKr+JSYHq/RzeipKEfzxG6wrxF86YM+DOLNoLU4
+e0WYZGF8JuOyig1gUj3WplB7iG5E47MukJs4WQa7xw4xvsWgLRb8izoovWHTqiJGJEIkFN6mN/oC
+2f0yxGYD/USk6WeBYtnRGzN+6pt2gMWDtDosYgF5R1vrRuFiAnxDAi1l6V1ToK258XLj/7J3XsmW
+G0uWnUpNADRo8XsAHHW1vnl/YCkDgYBWAWA6PZSeWK/DV8+Mmawmi/XXZv1Hs2TmUQDCffv2vUCU
+riMqCqjYupRnu4tqIt8ns3zJIZT4MKMGYe1Mu4CmB5AA5p+OphrAukmrR5yz0+mkm8qCUcRQjNNB
++Vo9dXPmJCWPoDAWFxLNbrC7xomncKVPX4Jc6LiVLbHhrbH5RHoXK5AKgBz5G7MBa0lCJR15ECFx
+pem2Wb59aArCQXaBS2olj7GVBO38cvurWZhA5WwZvsAhJ39b9tRK8A7pQdNG/Z5OaoPcgC+gGEr1
+xhJ887Imr669ehJPVZ7N7y1EtbugGhw/7beswRsX1flh3WxANp0aIzfGN1EEJItpWcRb2djvDsyl
++n+S9W34U04y2mS/XmiMh/9m3jeIIvscGrMCV/jP877LEhCrB26OWzm37Ns2vCRdI3NE5DpLs10O
+0WAEP0J3LdSu1mD6di2RhUZSFn05gdNx8nsq+mpJrHZuHy/fyIwTzcuug9m23pma9EsKs1qCai3r
+uoqzpWhv+c8IfLXQ9vOi7OVVy3pa0tJyxmC3BXP0ricr/Ni4iq/LtqVNu9QudWIM3UJwAohsSbLa
+or+MTbXpuFt8ya99IS7HRs+ts8uDsvyaudywZNG69nmyq43TLwQhtPPnaQCk2xP6HY+b19x7Q2vd
+hiFHdFqygf0eFr75qRp6bMtuaOpmF4AGOAeEcGMpDKfLgi4i79dhNqYurbJl/Sx5KeBYGJzeutUq
+IFBFonrvrbnyCdJos2fHsNeXqpXGse9oHnb5xpSXfT2DrHXlmwtQNu6qh7Z06y911BKW39AvwrmF
+6rJzi8BsdwpozK3OJ8dKFH6ah40wtOcq0yUpzZCLPtVzR/b5MDprIu3J3btw5U+eCeHHyOEC7sw+
+6JhJWEa/x/5FCvKW15VLHpJh19Dip9onncXPbnDYsyRWUdY9ATZTz0YxEz4yB+P8phcpPrsMWBWn
+uLl9v4zFux2sUq8DVTEqZLyxknB0VjDnEDB09dSz8EB37FbrNQsD210HsPmJs6p06PC89kTIFIxg
+RElIQJLImgL5vbbfA+l51k6V+fCJNRH96tqNBVitDL3z4MHxgc4Lh7QPKLfiGaeeJj96auA2hb31
+kgF3/Eb++TgfK3QCkVZy3R5qczDv6yaD0G50Vfjoe7XxdfArUcZgE5ivhU7X8jWRqnLdlF7IlTqC
+gOD68ThfYZqRpyOXqfB3buNC5RB++RYpPucSTRdcn9u/bY6a022gy805Qq710Kk7j6CIOnY4np4W
+QSZ0vPDtuIlYlulqowtd2WKfIf1xqsCZX5oc7raKXspcOm8ShlC4r/rKfqqswbaTbg7AhmuAyK9F
+YTu3feHloP0CW+VXbMBO8H8i4pjiWkouCyWb9bUIdWTvWkca1/2ibdCws3Tg7MGavR+IWYeZbZti
+Tg3X7/y0der+IQvM7NvaWNzIKwtHn5XjL1fgceDmRkB5wt02G1jFANXM/s7zoP5wJPX5D3tj5rHL
+jK37EkHAIZtD9c0Lx3aN614V2V6Zs3VaKhu2W+0K72Yu+u4OSE/x5LV2AFKAGPPTVoGA23VB3jxB
+XelfOxF4tPlW+FQ5fF5Cywln3ato9L8uRNgg2AyBuHN8Z8gSNufMMwdsyFXBY5wrqFp9aqsxlG+1
+1qER512tfzAIXO6jYgLzlkdjfx0G7US5W3TZnGiy2/TfiNB/6rwQCSMW4T08dqjr/i+eDriloAXc
+Asy2MrqH0mijhKpVH2Cn+G9/3RT9PkD6qctj9x19M0B9IUfA/zUfhezcHqR11SUFaM5nUASNwVjP
+yD660IBNMARrzk+nV3SI0nU7uQfssv6o1i5yUuXZ7asVjCZRg4NqrSs4ajDpBLGdxs6tTetqWXTz
+TMpDaCb8rvb3qZ83P2GZpD2N0gpuEbmLH7gnhweWl9cPz9MrWJjFa/BvNSr6vEzO8mFJ7UOWapfw
+Yazs/Nnv3e0L8kr1pB17AJ2j6Y/+v5TxJ5mcZYKLJ+ovpIz//b+a/7j/PJXNzzLG73/t3zKG+xt7
+V5iEGZgwJsVM+0cZg8QZZl6XtVQq8Yux/t8yhhX9Rq/HhvJlj5+/fLku/62UI3FcFlAQ0LHnouQj
+f/wDpRzd5NeG/JLGgXDA6gTrfSgu/PkfZkiz6yh/klGe1Iy1w7jndFlSDaL0u1qn8GXUjvogOByM
+tlc0JEkNYFUBWVnDEgdhob+GxTK5V9EsFMZaiLI3dTDkH6oFvLGb7Si7CQU5kofebocGLpE7d0+2
+F0yIddmq3yUp0Q9uvun5oXCsMjpPbHuV9wLij3ndtTxWElWpDE4AkRgfqArqjn0Wt91TH4Hh7Owy
+V0EMn8OavuiyNK9M6vEro5paiL+18N+KaFpu58pz9ty21prwWanibYiqJPBMzkrtsjTTh+zt3IxH
+O5o/mYUp67gE7xPuhO6W+9nWvr+DzVJ849ws+3PUj1F7qwG9gV80Lf1R1B15aLRevXtdRR1S9SaW
+GTpvGKzvPqUV5VqEjr9rxmzG0ENwZ0etQAp5LHLsXEDjKue7aPv1OmwKVg2toMi8HTtHkGDwJ5tj
+Wm/NBf43FODzaO8uHO0G92hsgPHeWOGxp2upBFFKhPGCN+oWePOZb0dor+YFeGKC9flaq2h6GodC
+/hinSZ9pX4s35VIuxFbrA3IWynRvydLpb1DghofBE2wxT2yJXY1TJ4dkyyQs1CwcVRQDANEXqI1l
+fcrswr8VtdOXu0s2wHes+SOlh5ScFmFA1kCytlQj8RJV0bN2VhEdCB+K7tehbAVM4zLMd9KO6Ktk
+ZdaXrN/NaPfsTFtfzbYIHrlQmglSSiBuoWnzNbZq3XpAM/DEdhBErPIGRYsxaKVm4BdMp0B3CIdw
+sjSk9flQJNdnuxFswr6nTuqgPkb1V+YATXaIVN585S6rvszRCE6rNexx3nXuWr7KDlbrLmpsIFOW
+BQ9rHqEoqHErb1rGk0tc+RIdvGoLqFf1Ivh5jL663wjy9ROS0AeGlV1e7pdQ00o2TQhyuZMFH5AC
+n4Vjzp7oRxDq5TMCgIPbuDDN935DKyon4tlj6Y7sPReOpot3On59yoAtxFxhtRWq00bx4kDLyACz
+KCC3RTbQ6ro0ac8U7aBJ6Ay5vgJ5aTKCxYQPMXoO6+EFhTGDjZCGVWwurvvGF0RdwIkOH1bgNyVk
+58y4hv9MOUQct3qWk1HQYfeGUaVCICzsAswDZqLEtjxCmwmfDSeffpBRRJ+8TMq7VrajZVL3koq7
+GXVA8941/tfZWlS+Y/YQfIR9PeDerp2FNG4zap9E0BSvllHTeY2LOVpsMpsyS4ppq9/AQg75vrKg
+uiYml24OH6EIXJ4KxhClNA3rtRijmhaj2fTLbLjFpbwsJet55mbNB0lUIghidhFUTFkcAAw3i5E7
+JHS3Bd+kWUZxC1HkzFdrJo2rxY0J3fBuogl5zKxD6N26zeQtSTNkzuPoB3mZbL7Npcich0hSXCPF
+vtaE8cxqItsrZOwPnd3IXDcdLW/4CKCIBecATskDdBD5zdclwK28kKtJMBYIoH0tBG2EXQvrR0uk
+75gQ/2Ck5PYDsnTZ6+/hjo7d/Sx9r9mBCnXzHcP69mT0jfaAWS5q2Iu5XJ4HLYoKUE4WvJtSm8HV
+0EYwfHpHRJ/qDXgeSgJ0nJRBIT2GGvT8LHgQIg1EEOdgqK/ko7s5YdiX8p3/RTAGfNRqYCefC9mb
+90bo5A+g5NezZiuTDDeSneq0dTewqGXlV9dZAwPwlJWBa1EIjiVLm62IAN7W3YqTyrKec8ua+91Q
+1goGrDU6T/AxRctPvgawCiPkULsp1kcR+dX3xW95jFl5bxzGMdvSkNSBs9IXDGMDXBCw3xCWUbp4
+Fawl2dK41AIkJmrMPOl0rX33i4ZcDaTbNlR/aXUbhj0YUgJgwSawC1cNNYpoIOEdyZLrGhyD7K8g
+xBF24PR9AyaUmWCQBMsGJ5UFVd4fFgi3ia1tFCe/udi9NGs5351gEv6VGMCcJ1k5QGAbB5HbWFsg
+DF/jSIEEooir+gRrbVvSeVlpTHOKPwcUniClugHN8bEt0oQQaTJwZPHGA0YnulU/ycqfc0Zntfnc
+EQ0KetUx1+hYUug3TPvI8EsD2YKlY/pYlgQITsUMUzivIWd6rrwaUCaWXYNIxWLkoKYodp3M/mSG
+jdEdPbcnkNipO1eczKBanVj7mX4OxQUA5Qp4gCT2Lb5Luz7boDnCme8/kC6oUjFVy5dNbcQAi3Di
+MjGryX0BLzJVB9FMyxcx1H51HKS3bEdzGnlYuWHBVYa4nLXPbkYVnTo8GcFzzjSJoSMmP/GXLvrQ
+AWzx/eRGSlMYB5l5ABY3ZjuWD6Nr2itBliaHoUprM2uH/cLW9MLRtBXmjvaQeF3OhVUeoc3lPK7M
+VS4JtUvbxuHAWwy9WnwTU6SbvXZXrgckVN5+uKlVHhQybhUP07Ba/Co9t4PSPW+9ASpLYxZGmw9H
+y/EIJYryGah56S3rtQoYcCQzc+Mn9lzx8BIH3sUFRqZ139iA22MgcYSBAjvW35UX1LegcLstdYZ6
+ebR5UoLvHovMPkQ549njVtRuF4umdrqj7nQR3omtnv1Ur+HlnxpbgGtqzfnm864MjeOs5x5/u4Xp
+7ywLipqTpY0Gd73OTJ9IvJADhH18oA6dRs2NYczXw2nqDb5IgrCb2NdCV2k2WdaPjK6/iyE/sxlc
+bHMtjoWUlofQZKxzOqzCbNKu9pu3IV/QOmFQG9fm4JhGPDgbBUCgxdrQhUtws8ra5jca0Cw7wY3m
+WlqxtUK6mrH1kTczYsCifVq+oAF33UEUgylOGnyXoKCp3fzWdHS/XAl4aO4ZVjKXMcuL4fYwRIMs
+T40FWPXday6Iam10zzr3Tbhag56yg8KAdXLU72+i4VY6NaUpuVEIcPG5OmQLm25YAidZkUGiY9uZ
+zAZo8K2XOlpsdeYK9NmMhgEMyKHNQjsFReB/EE5QfFPTWFeJ1pXqDsUUQPGqUXqcvTBK51O4gIdP
+HPCbt8bi1JfTy6wO9WjwEWqAzo94UrMIuO7Ip0FIN8ncncb2LQOaOiJDcC1Se4G8TRtewQWNaoOv
+h07egVs17E9i08uXgjA2Lml35fnd40wUycbMzQcE6XKR9nXHHVeAUO25+JmqwzU2ucDFsvH/G4vH
+lRQ0xMgk26S7J7WFVR/XhW9QndaW+8L3CtxYlc6Wwp+sz42uAvpdayneS1R40o+8zmTVDH7PCL0n
+dN4K5lT+DoIVj7JsQGjYSdkIRKJVu6cQQ6MVM4XY7N3I4i+c2jmgoJyHfnwMaKB4iE5ZRIXqNN+i
+LhRraoyj+xiafYcYU09UiLZYlx9NoNYgycgI7uIs6gxGFoEovxNFS3Am7Udv7otO519xWzDRrIux
+k2kJTyEpS+B8KdzBClVzG4YfJFoZDdJhifzkLwXxgFHY33QuBHuAef52Lwrtv24bdLpdh9kZZn2g
+rZcuN+3uyC/u2ru1dsf9qhkDpgbDSJn0yvE+ZeEKfjjorCo2x4lDyue7nVJpAa4l08nor3jat8hi
++SCeDRn448PSYW5LnXWqkVKZszv7cew9fzfPRf3FCS9AaTEPH1zP+acNvdSLCyMyRSwwoxB3SfL1
+xFdpuMEuqGW+JJDi8Nt0egqJGbVa3slmURl02YXaRlAnEy7m6O5n2HikxnFrZt8AOkYq1iDJHtaw
+ca5F5+VbbJdhOR+onTqHGkqoYj/mjekeNZT5m37Op3o/K3P8FjhlE6VaKNclLNs2DQoIvOHxXGhw
+8htrlx+GtN1H2rXVTqqg29jkdoG/HlRzuSaImPbq1GGqAGUVbQNiZU90XjoVbnEVdCEipevP+mux
+AB8eSiM39mOwOXQk2HxAoLacl7ve1L2fqtAcPvrq8jB0tTs99jpvwsMf2v3/Yi7/e5DTT+oQ7TlW
+tovF02ML/9eZuTHnijEvzuuNwCLu4bpZ/Z2eQ3XjlKr4yKete8tZWP/meBmkaaKIXIbT5oSECcnZ
+oBAbqwBYecYzIpF973756zf4q0WNpgesCPCzS8qR+afQHmd1OyzskUCGy8XNSF5JUkfu+jd2zYvB
+42crBC/jEAeIeZ79ACLtf1YQpqIqgbrPeRIta1hd9VIVQeJAImeK1SllxsS1VPrSbc9ftnHxXprF
+ZmCIR7V+brxRf5Yohn8XJ3550V9+G54XDgEmlM+kxV1Mpn+QNWDLsfeVCZn4/dcqm4otaYkzO46u
+BGu0Vf/0m/5935fAm/ACUiLV7+dX4zETuAaQrdjrRnE04RdxkP5t/ssvxlhs/7hvSUUw+UlRa36N
+YphK6c9Vww0l5CpYSeB2uyu6JUqZphscyGgQVd3We8fexN8sZPy+t/LT98lrE9+BuEIQI4EFv6iu
+UdGYmSoqh333pX6vusyB903Zv+O2vFgGGG7YO4eOPkSeB7Yct62orVSjXOdcf2CZD3XJef7U6s26
+7rx1+9qOyv9mOEDpwEV7NDiW3rI3vImFnfz1jfAnyZg3zy2KlotXGvPgLxcDWQelDRnejsklp7vG
+z8ihcFmam7b+n7/UxeX6r3hlYvV+uRna0sx7RXY5D/YZ0nMHTHtxIJuqqOv/5sa7XFS//CQeoVFo
+i5cke4Jxfr7oCoXXcZk0n2owm6s8q9uDkW1M/41APGL3hKCupyIuqsW51o73d1H6f7rDLjCTi42e
+1H4uyeAXAyyBcNE4YnagXhXhwdhGm6dzz5luGg4CSmM+/PWP+Ken2WWlCk84e1Wk3fjWL46rViyk
+sTPq5zhS7hEz7Jx2EuruX7/Knz/Vz6/yy6WiCNowOuVkcWtgthI4NePyUt1aefQwz473LyX9J7/5
+H71dvy+8/vwjks152RIgWA+V51dGn1ebDDJDXyTj6shbr1y8h3ZtqHiD2rDRzxgc2MsXy89UdsyV
+ZR143EZVojokQ8TabXjjvKRRoCkpSW9calkm0zDZDWR7nDlgJVt7jLlioW13/Wg9L8s2PJvSzz4k
+cTp/l+34X/1IiNImERvk3BK9/PM1mbcGgg59dox92P+UK/nODqd6/Ovf6M8v4l4SuUwueWazRPn+
+/CJls5a5TzZOvJYO6FmzQUBd6vZfXrV/5Ne8a7/XT2P//fuIzf9Xb/9P2wH/D+8DkLjMkf5/H3Tc
+4NQc/uPwvf8shz+OOhiLXf7if446nOg3HgWc/yDUcIn8Ps/4z6UAz/rtUiNd+CSX5TVGF38Ydbi/
+wYXlVGOiB0MC0eUPow77t4gDHFQOFQaGQRCq/2DUYf3rifiHm40ijTOMf5FBh+ORMfTLw3leagSm
+2uWJyS7XfeiRmcie37zzhrW5tUv7A+fo3RrJPLWw92GpMfGjjHZsT+WxDibrc7fpCO+TFPs26Ml8
+EzMmdEOi7lYYFkNy9FNHFxlBu+4zW8SQbaumvuXxKa9FwZTeGUuFaaHAzXyJzzRFsDLQs0scfMOx
+mMR9N2RrymLZ3VxM7T4f10eEn8MQChSrPDSSdunfFNaadJ0F523d8/jtsVnJzhte2jXqr0e/zlLE
+BXlyC+Y59dK/dGE+XBlm7371vGxgBF4HccjLHpRBy7ACL/+Mx9R9ClWEaY6WYy9b75uX1/hXXHEw
+vdEnSMdfJr4W6KgWmzVHbkAVA778RPJie1qMsL8vpMC5U0Vs1S52eGhweNzCpLoTRlBdMGjWobyY
+pFwyPT9mwj0SS9GGOXNkCL5Ehjmtfhoo5ffjGhV3gzvYKEsk4OJWQFIIjClVm2wwS7gPi1F7CQce
+3sKLPu3RYD8WQ2Olg1/vV0zAO2afOkVSJsC2r50E5TEt3Co452F/O4dbkY5DuCbDtr1AczMwMdAG
+AkLqiWsZ6hOPxxmPR8vwvyi8x0aP5X7twonZgsKjYVpVuin9uI0WXDk3V2iSZX3G7XSa3cUl/LDd
+aIQAKrA7271ZGwvARseyIKkt2EaYCmyJ1RnuacJgk9hT9qUvJjNtmbI8hobxSj2fMnNa9ixoP1bt
+eo+sxta5NLCv4LrZTbn9Zo8TMQYlI6BwnRAb6jej9A88fd/crOC6ZlaxiwRDrW3uzwg5LKh6OMfy
+gSTDJSqzUwcAHFCLJmGuyAivH9u+fxaBu+1DSMxhNL45vMZzbrj90a9g0uPFuJ+MJdr1uEaeA1TL
+a0uPH5VaX4rFe22j4YfatgLT0Hxom+jWvxzZD95iTD+EGwz9acH3Eu3oRMc6HhqvXU6Q+ZYqnVis
+Cq6Kal0+VrcPUWGjrLl1SeYFxoZfV93NW1bdTWFZlCh6rgpfR6P1rSL2V1R7Zmi92yZLGRl3rceG
+2g4+AwsfhAlGW4xjiWWQusvWNs0zThO0bTTal1o5LB8gkXUBv4WVs0ey8vzab55WbTJLSy27VbCn
+dqPAsN7VTSvaWzwTUnqp2dltaCfYwlW3d6TMq7TSNeuE7D5Z8lvfuJliew1tGKJz1b7CmPYflgmS
+VJJvpOnHZmBAPPWrgkmM7Qv9Cf7wLM4Q6uStGN0gOEBV384Zmb5GcjE1o6BvsprgUDYdtxsYZ253
+5qLdaZr1SIyts9rhSWnXY2BqL9mzZWxRlvhrp7rUjUrz0UdqKbC+tjXbJG2H7JVbunb2Cvk1OlK9
+Bx7jKW3jpOrCZbvIvYPEdK67yYwIx80m7Clrjq4T2lM0Ho0aJ0ISVCwU722yerr9ljHlJgAD63HK
+BlDEEjJ6db4PEexkMqLJRfEYjGGw84DZvpnzOpBzlrXNFm9t7b2g2+CzGYoVIzIx2+uaiHLsOjr/
+DN3FCrYFOQ3b6qnJcxTc1ZfDGzERDEwKC/vVburD/GEOWPncRVbFWEmADxxPZaCiS+ZTG4631RCw
+Tz6IcRtvaJekcdtHtcRVbExivY/MIRyfDWjJQ2JUnn0EascP3NjerE4qqyMDS7CE11z2Rr/sbHfR
+n+0h2743g5s9Mj7hC2kiuUYpxFLW/f21X1knGnvH+4ow694zAyYd0DXWz67WXpb60pmdRJUbClLN
+2Rqx04L6d8BHNxNrHlSdvZeR23pHEXJoPGT2FKi0xRW6xs7iKYVUPkmMWsJbniZ/Ge96juz9bBvz
+sfS2K9PIiys19m3Knnr94InuVhbmcuhUqJNcB8sex2lzJ0Dbs3Vk6jss3tkOFRAD+4pTMJ5z/dkS
+xXbIfXm79L5xWKO82Q1yMK8BS5GHUS0n0+dmq7NyRI+GKb0sIjE7r066oR1uaMrW3WZNOAWDCX8M
+5nicZjYj+yg7tD2Jfo6yZKqWiT3/pnoqxfwgHKr8lvMz3mrpwwT2o57NNSXUS2+WyrjOBvdY2Tyi
+dTuSYIev0P9gvlYuB5RvbGl+e2bKgWk+2rxTI4xbr/O3K2WUh/7i2qYxE1l9w9zAvJlKdLw5+4y3
+3GFE3PzoW5CD+bTU+9yw7mXE6NYsgBwM2KmToPSdZBozngnNfXa5Qis2rzaUehzELCCsPK12M0il
+26ZrdLzm2T4z8Uuo1sFD570z+TTP6NI5p6N/k9XBcmzq1r9hGXtOWN7HWd/YR3ttUsOqjv5mOcde
+j8N3f/Ni25MqaVWpj7lsWNNiftlgZ+BoLtrgjTHDc2+Z42nlgkhcY6l29iCj3ej0XwaGPWPiLfOj
+xvOLJEKFtKYjzaLNSVUzNW7bPkvceeKJwUrOVaHX+jBNhnzyemC4WFU3I/hmDFYvznnBilbMOLP0
+3rrKxCSaV669HSDUrf7tLKzxyjaozfZBtJkS0pmeRdpXyvZQfFrRJNsK+ekhKlefOPEM7z+7X7Xm
+tJzNg4yaLW1yP5iv3M1k2S8Yt4L9vWZ8KoIMPs0s2ZrbVa7VfNdUX+0eWqPn3Y850IFkkquKkqHq
+2vqqgj5+bJbNB1iigrB2jjLfLOsMuZLBk1Z2CbhSRt23qqpyzbiUucFRY9biO51tbzxNQ5evh3bi
+HzqxjO+UrM7VyAefaiNnpTHK1WT1+6LoXZ7Qdldlpzw3vCDZsK8W51W1KxMEdNP+XNs4CBlvXAao
+Ye06+RUwGoWl0y8tQQnC/tPbFljcVw5xpXKIbTH4ww2wxqrfdY6sy3t/NfV0bw7TYmHwNowtS0Ot
+p8cJarCxY023fojMfttSzQ5497BS83y67Ay5d40frFtMQuiMQ5awCjL2mDEHuFERgA94DGWIhsR4
+Ou7zCStd5i8N1SEVVXvkXQwM6XId5ifflJ7aaUoDwrcDLYWZqsGqzgXjLqqGEXuCIaIxf6mqVSG2
+MaAqUe+xhT7aW//Jq1RwZJnqKFmMR0OKur1VboeNBcOjMV1qWhZEZRApyevhj5zl9Cxd1PXOtr4y
+l/6iJKRrtigls8ceuTFWyPVPk5vxNpl1p0XYvOjRPzPNSKnbksgYARk4LuKTubWHamiPLBG2HD2R
+eCkqrmCru7F89vKbCoOEN1RE3ZAutvPJZ/e5T/a+4UYn9+IMAFl0nrrmmV1cvLua66dmUjRlRmI1
+093Qe/qBL/gtL4p8tzjlnRmq89gxjAqYmnPkdWc0s+KYTd6JkujuMoD8xGNsufVGolRl/jQZ9X5y
+3NQrS2BSQ/1uFRabvEOT7RufHaZufC279n6IpmNu11/KsKkSr5ZPdu485CyFop91y4cU9aeQOxTg
+kTzjGeqOzNjPnsoTZ2nJoilakAR4onaG2r5YOrspO+9pdDNrRxbije46HRdB1F3LkNjnxrlURH70
+5nYmoUBN82ObxcjMxaJXGfmcgb4FlHs1W9EBrenGH4yHsipet2C4dVZs4GwVnP2s/NpOY7GvBmHs
+ZObkBydnequ75v3CmIsxoZi7bC0ZU+NM/zJP/dNkBo8WAZSxEPNN7kZHeqn9IKaracEejS+JeXkf
+XG/1QDHKcmqwjsgm1kPQOrQRur0vIu+BscaeAJ5XfKu4bewh4hbd+tghcnK3huM7R/XFgFVcT4ZF
+fBz6FaXueyPGfbd2HOJQBuOOZMpV69SZ27Ndj/pQGAPbt1H7LbO9/iB0+LnHpOXkHgaE6LyJ9TWk
+NcL1CzSvFd63JaIov8yKnV7HTrV9mcuIdRsS5Q6uLN8LmiHOlnYOr9zRfzNZMf5u+sZ8nbnyBXDA
++IR4Gs+mu2MweuIxQNu6LKnosnNfrS+qMq/qDZQQjqh77QcHr/avB3o36ssUj/v8uk7T9dYu94rG
+6rYLgif3Yp+h/TV51LPyVfRLeJJTQdACBsUPXYbJ6hXto9vVzifP1a+ytoZkmG2GrY6kLRNlH3tV
+dp93TRv70WYk0aDsq8zGA7IOFj8PazBqL117vSde7l5lYRsLfCZXGCS+4uliWXzy9TWHTbu7zALT
+DTXqqUdPOvFv2CKOGJfuVpd7uJLFdyZ7IQOiuYEElXV4/6Npv01ePx7cyWntg55xkew4bafqTWUL
+0/ZBDYxUXT1ndy7QUjwy5kgVdUcXh40A07ecTrB++FtulptHyvSiTcbeyruDkvNQpLQ9LhsFjV0w
+gGaYy4AUD2Dp7JtwANZjDFg6+Ei9z2ZFtOIGcJTHn4bhdBm6Yp1/DqeCOatmzwPjzcUjYSOHFdcM
+94i/qdksf54XTBcs62l9PVek1SaIXPKqMDVvHfOQrFXMYRFu8YR3joKtX6OzgrtEwg1MNqatkdXy
+TFiLdJm9jWq2b/hUhvaRwQyt96aXY39yagJ2rz05DPnRpo+5yb2chifSFSW5IStKWqTy5luWtfN5
+orESmI98dWrbUTwoC7fcldEOzg9HON0z3lAgdIYvJorahTyOgXhiWMXmZ6/c3oXrFPdDN4Z8cU2U
+nxtbh/N+2Wy2huZuOI9hdk/U8+solytWXG8HY22rpB9t86YKlojlOOaD+44JSnXAY93v2Wq87R3j
+agkiGh8MpjsxzyQV40JNC/SYppd2jAq8L+eJPbN+Ym5snetlu3d1yZfQbbGT+9f20CRTx4lZOdMB
+FtirQxd4lQfbLZaIeOl1E/clyyCrUX1Gw16Pg8LwMIUFy2tDdds0mtrS69jFt+zXsRzWtNr8b5xD
+t4u7MBt1npb/w955ZTeOZN16Kj0B5II3jxeORqIoipJS0guWTAree8zmH8ud2P3Aqvo7S9Vdufr1
+rm5TlUYSSSAiEHHO3t829SjYYTSlqaQpgfAqWoV1DmZRDrAuxF3oZ21/R2UruCY5TWK1ENLxPizH
+VvGQJ2V3yIJSyU4S6qZ4nLIaX6xe6t31qkjfLCoyUKfE+sHnKccmvVL08iBGKEmSKOL8McjkA9Vl
+Kn+0YncjUwwK5NLtMPas7qLy0FmDj+voLZEJ8B1LFAajvDzTow83GLUkHL5GxMoo+zyM3nPKA2w9
+rBr935KwYpnyHcdHDv4AlXM7BOxxKIv5iWLSDxq/yH/x8r6qWrmPxaE8TROZWbh8xg2P56U4J2nN
+ls8ca0W/LVW0ltgP163X0M7CFUdyC1hAU/ElYmmUyBP0MXnl9MPVwQyj2GqssxULRRS6noiOhZUS
+wxGU/yxbNUx53hNtLpSmxz6U6a+GBhu6hFD1E89u8A0N+R3+uKi6v8TIntyAg3uGM1iZvxe5MpDs
+1bXNB9VynWf62JroRdJ8ZEKHKB2aQ1NneXvX9Mh2baMR4hagVjk0noUmCu1XS0LDe11YxtOM9Ac4
+nzoIHjkiI+3mOWffCpVr3WYqMCHRf6aN6GlDwpOiVYTxraJvLOyLbgYzToc5xm8KOoHgSoALRLaf
+ER12V9Kop7dqqxifcS3WBLSWxhaCh8ZevaOsV1Xie6lQj6PpRnM+z/rqwTCjkfT6+baa28HOQ7Hd
+GX3/Iy9pCo0MID/oJ0PaYwmqHXmsvKaUO2sfTeawbHU5bJRTMhP9zOw3eShQHEzxHmI1T/ajhYDD
+lci+Dq9a3ayqTceG9QPnD6SKXDTnz1oPE8ujd4k5qkvT0dogVe6Dm1Evi31C6wZPQ6EOMXo0aEu7
+lLgOVNI9MvIrgiw4sqQ1FWQ6mTw0YF+IcUIlpqLYFueKGe6rjNaYR2eGhTdsu+C45nXMTimWqiNq
+5vSE48J6iOZadNqgz5wuySUH2ep0k2HpfSR+561clGYnxjmVJWo8P9Rgzb0VQy15HQ0924DrzFBU
+jbr6MKSZhLlD1AS71jgzLEtvnZU0WrbMBMuiGsVru/TehtERi8iYrrtSiOiFJkoQ5gcjrSbp3CYG
+ikzWmKI+piNyva1yEaQNE4eXXSoHbfK6NIh5OA4ibODgWi+3GeLN6XVKynD1Y4Wzdq8NIlrNphER
+ejUXAR3IYKQgTUHuBJU7Q31AyFUUd2yCq+KkmHPcPCQzidK7LoCNBlX4ovej750s2OQNq/S6pRwK
+/HsAXNBZJrj+rk094BqMRc9+ATx7EW2LssQnnDdCmtzzUWSENRand18SU250b6lhdMrassEgjfb0
+OSD3WfDCRhSkT02q87eYe/PJcVvKnxDOoFJuo9JtlQx1dR6pKFr6MEHqhUsT42PYgVHxxosmU4vI
+cD0GWdG9qch/Rk9gxFCMJF79KkZMa/p1Hesjt27kedaFpVV7U5pWHOKgshFMuMpJA55A0i1bvQYr
+7KA016FgDYbPNKkFt0d8u1onRYylhqZa/FMtFgeWzKJ7wSpu5fSD1mpE5oPipZEYnsKsywuqsTr8
+QAIcWLYhEN27Z2ETUofS3MIK0QUsaq1VwJ0RkgyRGaEdLGVVoLfTjaVm0a6ntwlVNzPW83sfM5g7
+M0l0D1KCOLiUCivegKFM6cZgZt1gX8/C4wQ/kjmEwOyJmSm4wAcG/UnuI+MZa4F6xxrBLtCoBNb6
+2mD730VuDWSFZz3bTXob8dvQhJFndE1/s5T1cgiHWbnLtJjYUDqc/oiQ/cYclF3ddfLjrAekwMnt
+FmcUZlPqng948vQtOw62SUtcBTeJUqOybM2ecibK12ypi0MpDenWrJrXSKp6XxQJ8yw1M8B1qcw3
++PEmOyhrSMNyoLMKhupNE8Tq3lQFyak0ZSeYy49cH3d1Psu2wWl6mXLRmWWrcme6lmaDa3vs2+xZ
+lwpadqzh2wnFpb1U3V1rNtuiNu9USnzvdD3vLSPbIweo7Iw9iduTanYuOvM6tCrkSkLo0EHcGFZC
+pHdseCEqdh9KBMwb0/wYisBCcz9IezSwAsavhICNMeZaoJfTtcxu6OFQ2NH03xKM/6N24//v6DG4
+XIpsIB35981G58dr83//5+c24/9+0x+NRuObrKE3Am+6ZtfwgPxfT5UqfVMJBxJFoPuGBZQFIcgf
+nioZSxX9STztBms08er/7DMadC6NVUTBpgoYB9qN/6TPSLv7izADKdjaylwjmmheKl+jMFUeDNjN
+8Prp3SCMrtHjIMSiU7cf81BqsZ2IebSB6tQhnY7p7hPnNL2R0pO+DkaDQr2RCJ6ysflpT5R3+9c5
+6Vc7JvbgxTEHY/4IRZTtrjrpQ+bW8ayfEmGZ8TRIRoCZGEDYZ4fu7jRHMMOupiBADc1eNpTXhyyg
+CwWThA3rYIByjMD0NjX1atVD0qh1+m6QSgo0o0gVNKaQKQVx9hzE8qHRaXdsRbUHDtDjIKcaRKvR
+tJtlHh4GmmiaJ6lzesvecZhcESzBfkmQ97lJnKGMimcySpHdFOW+kdqMZzc9ypdpTHBXKnqeHQRR
+bytPphguU7gNGnbig9jhPMLzay9aF+JSV2WEYvrUyoPTTEF3J0aG8CrXtRjixU7GxuXSVa9927a3
+1VRBJzAGrc42U7KEqYtGMDwoC74Fu2otOlF6PfRXkhJkmi+meXc/hmYXbcZgZEuek8MG6yuee6+V
+RMwcENorfZ9TicOmJMXJ52JKMFoqTRNbV08XrLJZauJsaoPkvgs64wbPwUxiAVCtV3ztWeGQSFTX
+bmAE4zMHhhXfxQKZbmP6QE/44DKT/jDNDj8EXxQ4kRRE7+TEop6WhCgtToVBHbT2lN6Iho3aqrXu
+a5SSlVcObxkscNlqEHpMWehKMRJXzDEKjw9bVjpFcTAGps89PrGbMdSw44BLw+XGGxLK19RYFuMK
+NGygXQfa2OOdNvQxx+AUL026rVspYB8hlnO7y2MwsraIaLN1CnWsEt/Upa7FjieV5aYUelHbmAaN
+mbTTg9IDkAyebIp7TBZSZahuJlm0QZUibyhomznt2RADV+oqdCMrJ6uTbL5NzMrAyYNUFsSaysJN
+x0mWnxVKqoUbShY0lnYsBIU+7kBlRQDAZtptSh6SHdLYolNu5TS5TCMYRq8FYrOtunFS91KSdZRS
+A3Ki7plc5aM2SCJjQRCzksI18AWUimAMjD6CwW+M4kloBT1wsVhJG9Sxc2ZHg9bPG2mQGumxiI0l
+89nLk8FZiQPV0aTpx1NNjvFLbgwixIeaPbHDhnbK8HVZZrrBNdHPNm16CyFxIpJUS4qM+YKdmb1/
+kYRVsilFcqTsSMiig8E2rXoKqAUeMAfJopPh/D/NoqkIdmQJvEvoaPlVN2V964yjzClNKdqIiyHM
+yTnlWHVfYwG8ihFcPoeyQhcjGIYWUYPKGNpKVto+hnkJEVtpa+mZXAVB9gurnq9ZuJAOhynTycOl
+nr0z/jJQCNmgvCSCMj81Mq9H/cEoHoQSjbCtCcSRU3Odp01bxUvr5MWSP5RymhKgNFjZQSlxLnkx
+Fa5rTolB64XK0D8OuVBQoJ/qavFCudSAmEp6ucVnTykCTbwinizOrDjgFg35tNBEQMPT2qDNoprc
+DahCbfA9BAagemWNtcAWdTAOtiqO9Se7/kZhlms4EHPM9yv9O+0TXxKkhTVOGOrv42TWFl19k+w+
+xilCubIhqnXBNTE7wIW1ln6WlKZ0VGThSJ8JL1DUlsq9CSuQ0qIojbs5ztSEV6yU1zpsBrDxeTkM
+V7TMoSGkuSo+trQJqJjJIVStfOyrY5VXKsfORlLLbYDv52Rh8x4cZluzHLBkjc/DnJpuGGjPFKVD
+AGNTnlN+isCZbqqiGHHF4mallkmbyUcQQiy8klVQYvCMgoLqlVGeWHjlMd0KUTfGtqJ207gVDFGh
+MqaWeBWZCKc4rAEt1qrcHvNmZu9WphOuQq0MW3QD0A0no2RUFZqS7g3Ruk4UNTMOqTxMWzw7iXBl
+EBFIFWWe+nNg8eC7pnJqfRZZyjqt0Bm/T+Y2BTUSCRAsi5STxT5kWIV+ONV6xqE4oH3Z5NiSNzwP
+isheshHcl2XE/R3OTCH1yQGl5FaoBQd+lim24hNd3NaJ5kwNXFHsKPvxiGafLbA9vANDtUjObzW+
+IG7D96WIxBRHZVXyw1Nx9ia51uTdTM77e9UJMx1uWcQNsfQ9LhrILCv1sco7HrUp6wYGnqX7PZX7
+v3u9n3l+v0Hx/v1O7/ZHU7zmb/37n/3zv33b73u9ldmH2FOyQMH/RgL8ea+HL555Ya6SM7ZviLl+
+3+uJ3ywJOzuzlj4jO76VT/uHfd76Rv+fRc9gZ3aRlf1H9vkLJfufirJ11yiLxoW9LIuEdX+l4y8h
+ejItkk5X/ssx9Ozdxt75R39n+/7Bv+M/O3vDr2zP80Lb2W/3n9vKGe1Pd7vdfo726fwLvt6X2Iy/
+vp8v0khVHIYg4f24T+69v7E9x9u6P23Hb3/7bD8rVjW26z/Jjv/6El8VsiViKynmJQ7bg/3ku/5g
+2zv7eePbd7Zv27ymu3Vc98pxr/yTY3tX7i/egczt+9t38EVtT7GsVcVEOh3848vOv/e5vs6rs907
+51+8kvQFAPKXD/s1TK6VEUSgBToduMNXfLr1vq7/5d/HF/+wdY8He3d4Ofgvh2Ntu/7h8PLCO7Kv
+Nzv7bne32W02G2+zubZvvK2zd662jITn62tn69j2te3cbHnX7pYLtnWd05VjO/bW25+cqyvXYbhs
+//7W/Wp0fM1Co+KZyR2jw3dPT2/H0D7a3vMNaTi/umwXRP3fTAsTmejP7ot0MIwBINvpyj24rns4
+MiUOzIrLgLT92j5yz96YFTYX7LD+DV/IhPHvbP5ox1+u44jxxHSyb2z+il+tg3m329zw7+2Za+nu
+ndOB68Z8O/jr3Xdd58bx/Z3HF/L7/d5x1jHoHxgjR3+9oJG95Y7xPdwv3+WOXPGFXP2nw3G9CUeX
+7/n7S/7LAbTOpp98KGYYlILBleAl+Yy8O3tzcHeXS2HzEXhX/M/5xQ1Qvtg1/jpu1yn008suBvKH
+cb3TT1zOw3nrrBeBX7hH17na7Q4MuhcG7o7/u0zh3cbzaptf+lsu6cHd+i+27z75G99/cXfHI7eD
+Ne14F9r2d1Y4n6vIffL2TIgn+87Z25fRtNvsjru7H7vQ/nG3/tC3++NLbN8v9lto7xhuu7u74x2/
+/fGDldK3mQQ3ZyYt/z5tz955+8mN3W7P9v3dbjfZdmhvmDXfr29uvt/st97Dbr/9OJ8cb+OcHPfg
+eN7ZtV+v1zvIODszW2xvv79mEdhvudwu685lIeKTf7IgHVxm13br8PF2jJgrZ+vdMBIuX/h45o/X
++Xl2r05PT657dj5+MQ7+jFn56w35wldtEUNFxnpDWEKeuBAMBOfaYaA62yveq+P86kmwCqf/bpU0
+v4idcxK+wKDyiscdw9/53O5imxu6DnRm3JEPybzit0wX/mHvufPrb92jf+/e7+4O7lPJTd/YT1dv
+6/zhDR839ub+dlhXeKbpHYPGOXvMMq+yvZvXxN4zzvauK9vuiZXwxbIfvJt1Xrv21vV4FNj7dTX4
+xQyT/lxt+euV/fLIC6SuThY+58F9ud+tU//897dOFdfJ8ner2ZcnHs99Tgy8whUD58iCsz4HrtZr
+x6dcFyCGFgOJ8cXMYaBdcakY3ixb/Jbrwd9tGZMH19vzS77a33H5t/wtzw9+zUxwmFMuz2t+JD9+
+/RK/5Pt399w8Fgvm3mVBXF9x5zsvfAlvwXa4C+uX8xvPXqfTltfla/mJt5sjP54pwI9iKu923rra
+Hg5PLs+r3b3NheJ7eBitI5CVkzfH9/Pz1h/mXPMLlogD74ipyK6G+/ro7dcv9fY77v/NZdXiU283
+JR+eW2v73pbxvK7z6xrOe9vwnXfOKz+VSefsb9apvV4mLtT63QyMnBWH2+Xwx39/y/489AkmQPov
+60Qik/RBFMFXYnKsSgHwMs7loT6FN+EyBE4/5sOVEGkDUBawKCbi4l+86J9Hye8vimucOARZRUL3
+ZaVHgNQRaQUwpwnk9ETyTuaBsDF/8SpfrWyXj8aW1qJMySf76sNTqCng1+ajReYo0XuzkAjbC4B9
+2mBF+YsX+xcfSVIVzVgvJvFZX/cLmh6QPVAjW5PmeATFmgebUtdy/+/v1r/4SH96lS+bhaYs8ZJp
+vMqAPNbOx8q8u7gjwHwEv0i9+VcfCK8coGyVGGLD+PJSfS9FOnZb9NKGpW1G2i4omxfjVx9oLSb/
+tGKsY4FIbomTy5pgvbLqvjx+M0uUqFFDOoSPAiozMlIArPIifM8AajwKcYm4KELtJ/hkUQ+HTh7k
+DjxDIIK37jKURDL6c2dMyXUiqrbXXgninQAIU4hVbJJedRryhT50XmVEOnUvU6inzbRQTnXXHhm8
+qUpM8lM0qcjtgG0GkoOpVC1sUxDL2s0srjDao7SfHORzHH/pTAGmNLNU+1zKsS+8vGry7UxPjBAF
+PUXX2we1Km2sTG4fR5Bi0V6WB+oeYBh7Z+qX8aOkodg4YxREJD2jvEZPO+VgDkcBhQ0yd5U2VSe2
+xRG19fRIHgJ5FBGFa8jV0ahZdqSPzB4F5Ozot7S/8EerMi0+3HEhpGsd9blLs65uXKHRoOo1wKgy
+J0Yh8AAUAeFyDrWG9Akychtv0QNa0/jss8aThdp6GqKsfi4byJvYU9ZgiSCGCuHElHUtT4ws9TBR
+QpSR1Va1ZHcRIj0vTc0I9VyWWh+L2FMrpDyoFU4hmchrqXm0OCPEPEfChu8yPdSR2iH6g46h+eBB
+k1M2YF2xm1LUP3W9kj7zhH4y9E9jtg4SnmXVmyEd09FDDX3TpVKtbLMyRhBAR4yIiD6pmiPCnNG0
+VepIr4UcVucWyPezUdfZG8pXLCxGQ03RrSkhIrbRxeQwSypZSmrUhe0DduEo9HWk+pPTmVOKwm/S
+6s+iG1BAJJ01MrVltYi9qloQYqXDpDsQqHkHRVpG1wllU0qNNDEHF6MEWDfTSm+kAjs37YhUhYUT
+riXUmPG7GpDp1PmKNWYUmgd5dsgqaQ+DKWKMCOscGbRSqShMBYRmet1SE7Yyxcq2OQXg77A2tNjN
+uV2L05QrjBn/dpFQ8ocxYXOrrHPellXjzyZhHl5Tx3HojAz4H6qim4c8CREtzoUJ/DVNa2pC2dh1
+6baN0umZhClwUlQZ8uuZGHIBtHltfKppFao2Q6ErblQttOQdhTekA4GUDRRZJes9w94C/2yJ4beZ
+cZffCVrVpPfTwBjx6NkIDxjeG8KIyqF2m8UUTjUgrcITqK/uU63IC98UTGLjLK1ba9nMotnWxTp5
+LOPaMl2lnWXm4gpJdcCWBgeUg1puZ3k4J04V4HNFmoTMHnmJitKlaUyultQl7Uk3FcxIOD+LEwkX
+BnQJqRiibUNhrLnu8RvnXkLmr+gGhGZEfgPHdrSHDo2/LZQG6LKFxuoZPrz1Hdqd/C4Fkrm4KB7q
+c1s0q/pqHNPKbsDaZY4oT/K2CyBxezUAuQaBn5Ddrpgz0RaVIiU9ZYrll7oMzNSdayRtN1OxFNeN
+QXKhLQ+9eId+nKXWahEbYhLONbCCUW3xyIJ0Zo8TVeQWAQRWCMBr8bZOEIjZsVk0mVv2MewTAAYr
+sERJs5sOFs+ID44IE7edVKijo5GhuKSGHFtOBhLoOaX4+4zKL19cEYQnav8QPoeNQydMHWE2ozer
+rqhzVmrT524ZxcF9X+LEafOcO7FUy1oolyrIJC116AhiUIrFHY47KYjMqLD1Uc2jhOfGf4KE6a4C
+1AEUpMVlukeXo39MbU82oBRY3Q5RvGXYSh2H99agxC+AM+rHxhiBeCnhLHygmxlehVTNZp7oonJW
+64wAr6Kx4vc6Y7TahRIKDyJT8pUafBR5GvbyQ0ZlfrDpy+QlJX3C5vFIxOWDMZkRJBBTbcG362EM
+4S/pnwPWKdnuwzF/jBplvO/ynqrntHTVXWQUymnMkjqHKgza2auTILoZhh5N8cgTBA5H3pgI8rKo
+RgCwRGT1Bg06KC6AVfmVhP7NGWoreEDVhXNRSlLzh5pp+Rn9hAQUtQ2QmOhiEKabGBnqthGgQm2Z
+Pzy0YtTbN7FVyT+w/7S9YyoBdohQxWYDs2Rpdhg+tAeBLqvmd5qo+0lUqcXewIyODJuQsu9FyDXi
+utf9DWhVvd4FYjBTmi8QVpGlA+pCzfWEHpNVQaUJBowinlwJKm2GrLqaU6V+aqOBsm+J6h0Zb9WS
+6qMlKV0DNQO+iv+7Dq7WlLJ6L2Co71Yy3aSSG493T1NQALoQKKAJSLomqZvFGqbUyWkSRK5gaqHh
+o1HXH2EiAvkaaWMGN2mfF1cVa6Zox3WP6UJeG7zdoKlP7aXrm1QaWjBtbQaPTY5CSYmk6Hsr8tac
+eO0bL5cW8rB2k4V4yWpbpxM6ujBiAPJbl5L1cClfQ/qglC1eytpw25g/9aXcXYMHeGfhoQgurvVw
+WJmUxtExUSYPAOq9AeVicIm4YyBNDNTUQfFSXk91hhtt3LXsPl9K8OKlHF9eSvPjpUwPux6NXrBW
+74XIWsm3IAMjoh9B723wPlLsD/UKQVN0aQLQRVwbAvHaHBB0PoK70K+7N9qZaMtq7SQIl6YCPyq6
+T8xgkh0D10t/SPDoHhtVyPGCWA3W9mKWy26DG2wF8+UalPScoCzuOQBkgcsysOejKgwE0RibxdjN
+Qw6iu81bXd62mty2d2HRmEepm/UWfU6YXU+WRHcSK8twnqekC3yZvKGHgIEk+eOYYD3Fw2aVyUjj
+oVD4kA0Rvu9GhbrNncolepjDmAbYsKTHWa2UU6xgQ2DAAtKJZnTNGUjlwk8X5QciSG55h6nwZArs
++G3I7XA/QzmIz0ULUNAZrFgX2X8zVKogNjN3lqLgJanodfh6IySABeehc7qy6DIvV/tRt3P8kZaD
+UKfT7BxdVI2TFeCGm46iWblFPLNTmqMcNJOZGs1TY6QrrCxRGGYGk0+Cvw70sNeyeFqVrEhH2X0o
+z7go6xu914LjNJeMunbVYY5IMw9DO48/LgJOnB+FCT+BvAD8pUXQroC44joxm+xF7cX0o09FJXRp
+rZa3ot7AzNHrgP7YKFrtzDO9j4df1Aj+su3nqpFqI8kiGkxRlr8c4HO0oG0eGU9WnM5urbAZmvQ0
+/cWL/OUYs74IUY9s+OkKwO39854fa4qqJyZPHx6BlqfUirZXemkJHbWJeVhfzkz/7SD93EGCgcxF
+/vcdpLu4/MemeS0+fvzjo/zHuc9+lg3h8V+/+/dGkmp9o1ekWoYpcjL/LXvwDzqB8U1XTWsNINXo
+M/3cSBJk45uIgGHNl8VkaMoqB8Y/OkmK8o2TpLSClX4TIhn/iWqIl/pyZgQkpcqKRdgKOAQJHeOf
+xw9/iaNsxq7bKfqtXofVUenHhaVZWJRMzm6HbGnZv+i52kI505EcZhYN4KYFDymS9KMTbCPFc3OW
+rcLkeT4ok24vJXp6BDEYVm+XoBXTllxQS9MjD7/jHL3GCHEtdYf2pBIeTawazH9t0Mb4IMJ21Nhu
+LnXGSUzKmoHdgIFmiODBPBEC09E4EbB9GwytCF7GoliQ5vbTGtN0iWxi0SO+qb5EOalNSKwTe+PC
+OGjsiW/UsQS9Y6wZUNOFET9dePFtY/ETYyyz1+aFKC8qyJmzXBk/l7y1wIp0wOfTssTSjf4GJr0A
+a9SE4weqvhHJnXPTFWA/g4QiwyKx9HfxQrjPEzTX9pzF1jnGH/oYrDD8OOjK83wh5A8rLJ8Ebb6L
+HVtyZpWvj4ZRs1PgkRQg2QK2j+EvDXwsyMULe4TyIQDIKzi5FjdvCk46xS5XcH/XdQ3u7wvPn5A/
+2P5RLDamTdgHGYH016erZQ0CiBVU4zYd+eCjVggKWEQF9WdmzoAOuikE31NPcXVrho0MaeGSNpCB
+v7nGu0sGAaxG4gi0FaebXVIKBB2BKKGHMukFQlwhmE/XUAM1sIbH5pJ0gJuH1IOAj3ZOLlkI2iTK
+36s1IKFcoxIIL0L5M68BCoAyyVKI1liF+ZKwQGAiaQtG0zVnnY0Mp2xVSI5xRzCDCHyfBIKg93qx
+br7PiEWvgzXKIYwIdSDLqDvESZqCZLikPkSXBAjhkgZRXZIh0OVk1ykC9d7O5RXH0VEz4WAfKcJ7
+2BAuUV5yJpo+InIiXsMnLKpgXj2umRRsZsSP1CSoIv8tsyJeKCK1BmPPwezarMrqXDvMYabvtUvu
+xbxGYGRrGAZyco7j4aSRrHJJy6hJvSD8op9SAyYxgRpIhxGfNWvMhj4a89FAgHPdXlI4BOgV57iz
+ZBDUl5yOFbdT2+IlvyO/ZHlAHcYbHk0KfoBUFF76NfYjTAcKLUbbp/crLPJcopogFGUNC1GrlC2L
+eMkQES95ItklW6QpchRWDSUFO8Qd1NtSk2d3OvFJb3LL0c5NWsk4LmtuSSCGeOgH7Mv3Gbai09gM
++DzSMZNvNExhxFVfQlBGaAGVQ6hS+AYLo31XQ1m9JaiF03N5iVHparEE0XaJV5ErFMEQJ8lcWdNX
+WmkNYmmmHmF3ImBZFpom/Q6ZidCWAhTzawvqFgYtOPz3wVwDXsjf4QebAbkvEHCJgOklhetsXZJh
+1owY6xIXA8tPukHnQ5RGDTIOgY7ZoGi6xMwEZj2HLuoaeS9cgmg6Q8yINm+Jp2mj3ozQA66xNRHc
+AyJsAB+/6RwxCX9s15AbTGRN4SKvJvxGXHNwuI7mC4ks1lMuIbqzQyHtJq8Lq+kRHIN8r0lpAARg
+TdfJL0E7wiV0R+jhrXlNysVxsks4T8WX3CEBJbKnIlD0luY0enYrwyvvsn/PA5t9OGE/wZr7M2VN
+OW1W7WqMEq4aB4eKUQxwIR+WlaVuVhu9GkiWUtg3IHeJJQBNyVxhOemVBLVY2KAr7BLcuY4QZ/iJ
+1CpJnpoqje+tILVuc+yxoz1SjmLTS3b2WjyDbm1PhIvBXI10SD+EmjyLOEeZZ6W28l/kNHjTo7AC
+t2jVicoRPpKpxvXdvFcXPQcoJgLBYQmss9hTh4iwtgzypeJJuUlIzihg7q9Quu/asg0bJ0C2abrm
+EsnX7E/VB3b6WGHMRo+vxKzBxmCSFQSYSi6azxEu1nVc5x0Q1gaAoYv3FBK6KsfEJmndqmIk6U14
+Yss13lTEoUuuGS/SvTKhk6SggvUJkmVIjhheAEShYVpYpy4NFpxWcRoFXhAg0gQ2KwsPIzvwhyAe
+esmRpR6AvmTK/atKTgEpZWM1N86iidyvOl55+S0Om1uFPTPu+g51bD4tYM0USVC2ZN/c52nZMKMU
+wkQLYWBllPIYwZyKXx2EKOBcDyHq8lonIdLXYugU2RdLWQ23mdRaJ4g7gMssa+rkKwUi6SN03L51
+g26eQVjrnFB2crKeg5nd1rErGiHDIiGILRB8WOE7knrL8gSlWAPRMGe6zRG5fdUoHzP3YeT2XkWZ
+VHN4nOslt0JChz9xEnwdlFHAat83UuLzsGf3r008zhzsncg6tTQME7fCNgM1pzKTl6UlTuDIs0hK
+oKFyFHLyslNJTSfXD88dicDxPsPKlR/GITbx/KbkjivDgpEmL6cEkMuy0qP7RYS0xGk5/yDyQGr9
+OSI9wJ0nKZL9EF9ih5lmERoXzyaGbaNv1fE+yRZDsPOsEiTObHJwFyPJhGGWKKmAKGugRjOnTf4j
+KxCQOnifrTsMK5D26mXOD9Tlu6eggzLkkFynH2qNkoOjLHNF78esEri0GJ/vhr7EESwAXUDnLFXA
+K6gUTbY0WlJGYU7LPkogxA+NxsOu0kx01O0yA+AB92S8MgaqTxN5CKWfVFLvOLjwpupEM6B+s594
+AYdBEMFA/iLywGE9XlYKUcmBai4voTCKB3aeg3hlypnyMWqSQiKFsFZ/6iwJdwGgAJS2olgcZ4ae
+RCqfggMewkTFzSTSmd3YlIinaM5VWMeqyA0cRFG7Z7NnQFbudRbPVCQ8XZDE9qGW0y7mpNb3Z85x
+U+wUlARJnrxwDZpoOHVgG0mPNLP+GgEnQsqSQuiNEY8kKmRiW2KcrqcgwagnRN/NmIIzJsneCE/j
+0NVkUTfjWea0WjlpOWAWAi5knnSKZVwcoqCP+OkIwhq4/t9zOh7Hca6ixrFEeM+2IJTtLZWc4D1d
+69AOO1dMGuq0cmrh4IB4i3h+I+6NZsOjLBqSIp0Ybeax21ffs1AwiRWWq+g+Qi2cO6Fo1c+QIMl+
+TKqCp4RU038IgtTEWaaPrA0Jka7cZSwr9zXCyhyXZ2xRpJ6Upnchz7SfFmEAgxulShU74wC239ZC
+iaoIQCzqITGAYgers/6GfN44Ub0qbmOKz7eB2MJYgjsq3coM8sYTu7CBSdtUSuWsq/zsy4mi9V5C
+XvSrkZFO4FH8ygWf6llpuaR8mFd5rnZV7CPYn75bCuQjf5KVgJhHVTLrjVTWwgFJrIqCthVJRjG7
+kNXZzMgVwCU6VdKxpfX1kUKQxkjcSnw1LNR+28h6u0MTQi4DolHlaUlTQDuWMaLnbwSQv+yaEnUz
+LxpMxxyuTutrTOLGUet0vJ1nVR39ZMAL5/AUFh5p2dHfCukzpd6gX9L/xgqufbFQ6ZXYFyTvVpgM
+AkkTuI+pp6aCualqVYy+073gs+rkldDZkKi/J+dRUcnWGMJQQsO6wLF+6A1e0W3wctJTqEJcvDFY
+04TdrvZf581f0oxoSf7dSfr/vDc/fj48X77896Ozrn+jVGSxK5EkVdaMtQv8+9HZUL7RigaIzoAi
+ov5ixfnDb2N8k1Bf0oKn38pkg3z1z6OzJH2TVAP1JhjH/xzsh97zz0dnTCoyNVjcNrxBzuprWPTP
+aqdwMkikIQ/YbZOhzl7/H3tntiO5cmXZL6LA0Yx8bKfPMU8ZGflC5EjjbByM09f3YkiqklStBvRe
+gCBAujcyIj3cacf22Xttm/pw0h4tjDjtejx2Clz7gAKM5HTTvo63MPBdxG7oijV9eCyAun1N2ko+
+6DVkLVB51gvMLDhrTTmVVNKl8KtW1n3A1IppPqa6TM5tx8lRe9bwFEQzXW+As/2TI8H4ZCMdogNM
+JEbpFgDEor9GjUzrfem1tqAnoKI/pQQLTedn8HtmBLwfQGkTF+ZAvMp2KEh+J8ljCbklR4bn+PId
+biRaMSHFTUB4Rwi/OG4c25hcQU5ohlSCHla9YxFRXYlbj8OtXYzu7ZSb7mnKwGnUZQ6VBAfkn4CL
+Q0ayIoke8iIoTtQX8ox36VK6zReE7dJq00vgTG8kBmyGMa9K3l0dJredEelVwgi5rdPuNRvy7MDB
+7l0Zw3agrWGCrWv2uM5LcYV+o57bonyk3whiFdVn93okRORDWXjf6tbPM3ury2I1XBRn5MAvPSpC
+Fi90Xu2lGKj6mAv7FcWS5p4iCr+QiNJ0QQNxYxdWnF2Xmou5sVJv16NGHmQ9piHDTMXq2bChIawH
+J4Bi++VOi5rgJr1KcbuM68XUaXSogiK/tIoBYCEpmNfvQ+TAFsnJnhjWBTwTY7dg6nPqwYkJkQ/7
+bAnCmPBZfloyO2HeKHlgkl2Zj/wq3R2X9/KagsO9WSubug0Sm7vIzdqj267gNgrRMlaL/jgMjDlB
+OHisBhjiO9m4Fyip9Y+VYfSAnB+Qzti6Y8AsMNX64GRi0XrJQ639Z6fOKHr0G5YyQdyllNfSmd0+
+L52dHrG2z89wgeR5ksNGB+PvW4gy5wQPxwMVcOKJ79A804dK1rp3Uha1ajxUA11C+VhwmIdjs4cn
+MQ1P1RxM4dENWbzCj+DmntN3w07b8mD9XemGGPJvFSCd3j+M0xRlwX2KRkK5bMpKujpX1A0i5Pqk
+zzz/WLRpFm7N0A55qL2/tqpx7rRjWTDtZpfSKIFAQmBgGp4XuNFrdiNwJRQO19GsvkwIYexJiwZ8
+d9vsKGQef4cIQXsfyvwRCl52kxKq+yXU2r4llSB4VizLpYuW7Cs7YTgYE1TQxzFgddF3vFiqHdMK
+aqTqDyYMm+eyz/Vx9guPRS9R1bPTTeLWlPDbGfZb62MNtblJsc3GYvaqxxJY573N7fCjTMgs1NAz
+ftSujk5MZfKOpcxqo4slxUkB0HleZ/T+HTF2xUDdAvofJ7+6EWu3QdoUOv40UcjJCW4EcBdyeXTD
+GHHPLVu9YPJoITB1EX99vR4V7UDgxyJ4gKjr9WHN/eCaj4vgZp4MjxOp4Y3R8OoBIb11lS6rXa5C
+qExJZ5iGwKY9h5EzxEhaBfP74P4KZLZ8oTgaIqKl+vbW95yntfYUCyE+MELm7gu2oupZ9qu8lRTl
+HLIs9x5tz3jvslnrgLGQFO7k1sF0deYOFg/jEq8jEST/j3Id97XTaHETkT562vM6e58tq39U4Ovm
+nT848sX2M7WnggSUqpXq4Avl3eTw2c3upatggeRzvufGxdhPfiQ6cUGmdBzhEohoEID+SN1cUI9h
+W/095krFE7MsnlBj2F4hnEb0yywkA9mhZzH3MFXsoSjTmjqCR977bbSggLB23il4Vt9SOORwZqi4
+2aUNdeOKkgxugaXgf+eD/0pgP/pe1dnIJijwhjs2jcFLvswZEqltP0ZlW76sKvKu2Zj536cucp4q
+Eql3c1+CTGVyXWlvG9gNyVr+aW1+HFbxenxktnQPLCmLu8Lpra+Z5QbtiTJ7eQ+ze6F4dh4vPIsg
+U/VmMUfJguppdlq4KOEc3GS8V342rehOM5pnu+dHFbutvqjK90xU3sUetdkD/oE96nHl7135wxZD
+eMJGNpNtAqDNvwJta284KveWo2k52faXvvT1ObeCCQCQGH6KyaS3DqclhgkvvK+TmvS0QynfPSLA
+eh2ptX+CB4LYOVsgZlWSD3GTeLgu0s03ETn9gU6j1GDaAcEzuIX1OECZIMbpevq3DcP5PPdqQb/q
+qrvW45SONXHMu6IO6jtAGdCHCp0xrlYhSfIyGYY39PCMgurQD5lq+/I9MZyOweDgWzCWDE5suLJn
+Sl3sR8Kp+oT1C0yrJbp7Hj36xtYloX72jzuQLTkgSmrqVvkzwsIiLjQhhd+VRIquVWLDsJC8qhhY
+7GWP0FxvhBX/u2mgylQlAKGIjtz7OVfWXUC0L7YhdJDAR03+hf1p/uLzoT4pxaEW56lMPoCCJaeq
+Wu+MphVprrh+T05cJahVjVtBJghpiKGG5iEqggiS2vzRq6S/csX0vsgIuuDO9KHzDoVWxROn8Ndt
+Vfujxup1WMm3vfHUa++LLAkvOkzXRwCneqfUomNHVm8gz+5bB0BaP0fBjQ7s4q7q9HDsM7xHtfWS
+UQO3H7bI5rFU9ZWsJEYp4dyZBYPa7Jrh6ENI4Ufg9dznIulvbCWoeWKmP7EIKPdVMdt3/UTMuW+r
+hnhyKC58hvFIea4653YnrpnPtRzqY/sOrt+J6SHyD7VwltuumJor6lGPADYkp7m38nNGb+Mxcezg
+JctFdOCYikB/eusjKd3lQeeRescyqO+Ru+oXJ1/rUxCV/cmh9+dY1TQ+UmNVHE2eiOuSN+MDdgw4
+6+G4g2JtjnzOOoNRCZnN8V4zz6EcJjpQrsQ+t1Z33E2uYaUOWbEeg6Tdj1N4rkkOK5u9R/dNe78d
+gq4PMLwiLHRuPaOKlM10WqUwW5uhlzzBy0jf+9o+LXLp95NDzWsYuB9szad7YHuMO4g/Cu2bwh+k
+31s/QUy4q3jjzfsOgWWNq/J3JNvot5dww3P8oV33tT3wBdA27ocIlBFdtAENxXK4dXXP59K03SuI
+Jn8/hSn0RrbRAoUsSdT3cdTrpQowO6Q4qPjUQ2LaOYn9jqsGAmST4RJwzXSkHg81Ip8VEWoqfHd6
+dZyDW8zWD3uL/rJDbQ9wQiY0wMymAntFqOtn95G6QXipKCQUk1cIK0vxtber4WClkP005MgrA+r0
+bTL2eARb5cb4OoJDmpn612DL5JwRvLuv01Hgf0LwRWMXB2vqvb2qIdvChNWMcVkf3XXFmh4Hu2qe
+oAoyvY55cSqTKLv6VtqfFQrmczQuy6nj7XoRM81Mxjf7DEPwVXQkfamxEfvZM+IkFs+62j58x9og
+OIzglvZ4Ld19VmUpKXzunC1uk5u2cb6yG3ktZfpuYafY62ibM3UBHzyxbljWiZ0jlqfEm9q45amy
+mzsYN4nq1n1rOctz36YpNFj6YrIMVso0NsWxsvSXdaqTfZnyG2U9xu8sx35SZuNvz+vUoQd2ss/8
+iYpsItobogw0whQzU0FLq/qHrb51J7Mk3wWruOezcm/LHlocfidATWk8BCtoZ1ABuy7IftCGyiN5
+6t1jrvm36YpDBdX2x1BUvzV2BaGjh8VpmzPK6xI7FdyCvJFI2zb2qITVA/8f+daSChVReNckXbir
+5I35sPuk+W2QVaGO9JZzpoZIxGWJYUrmdn6A+Nkfq87/hgWtuenLtDp6Vi2PHq0+p3zIy2fqD+et
+yKI7BPnwauBg3nvV3B7bxj9JK6RDfakM/2wyce/LW7Y8AYY256vrIXjDTc55KNdvazdeOiorYWu6
++wUhZ1eWKCft0Cq4QPTARYYCSCcqSYfzulHAdTOwg3ou6fk+ohHi3bNyQNWY967LoKILBFne/Jwq
+JyRc7Kuq9K90xdMvNdA/MVExHo8DCmUy98vOlcXwAlOtu2BxBNKdTxBuQ+ZwZR7DSn4hEVVsnSPo
++CLZsdohzf6HUL3m6wAqluOrWU+hXTt7nZbjjZY5tXieBU1QPObA5A7+2s1n4MXxYLKL8Ok5r4hN
+ixDmW/XHCmFkmXtqBdsrp+54rru5fAEkqC7UadiXKVpT2DszTD/LYbADGhm6l/+1JXTZz+EftREX
+UQO/97+3Jdx9HzZfQgOf8//lS/jrl/9NXAnIqrqkFWzPw2DAf/03zCQI6Y6OBFO5pFUIdYVv+ndx
+xUFdEYKIq+9wzNvyH30Jrv8XWwA0CTHCUUUpCSL8B60J+Ff+WVzxMUC4/Ad31JanBZLyz+IKx3aW
+MsnhAC7zgE2vsb03lEJpIIrONl41ljq/x6ldvsKwt2M7rKmvi0zrXLQ7zXEja+fF95Z5D2FsOddT
+fmNhiHp3ZGlY74bFY1EaFBDjJuzwUrSTOcSW3DZo0srH+cA9pkYTxPG1X1j6pXGWjA6geDE+R3qc
+Xjho6vc5qtVRD/l8DYsCbBW+Q2a3ZXyUbebbJy9ryjcMFtvhSCL9CEmoE0dbpoUTR6aX7wA+uzyu
+5TrcGpMVH+gkKAJjla9wg9vmFyoYP3er5UcG5AB2lvvcMAqqnb/W8yvMGf+tH7MItNhMTZ6wPBC6
+Hjb8aXKg3bWMxrush6eyT/pU4AVc5h9FasKTH9kWF97Ff8Agnd81WB1Yznm5uaQrlcNck1pLfO0x
+/+8Yvj3KexOMUjXiCRcYMJ0+VY4P/ljMrxWgzjdjiQgg5paJt5NZeRwmE69YOK3pL0PjrMfaY25u
+fezt68EuDbS8vKScjtobqHqFBYCFptL51Qam8YuKef6CBKWo8YTG075MQwgjDC/5DxQlo47ArplZ
+sc6vN9PE4oAdVeDQ2zhvDbKhtIH7bX5HHLa8HowB9T5z3OKl8qAF08zspL8Sz9o2NOOSL4deb0Cc
+Ykn0ENuWP12Rk719MyrvI82W5CH8rJOkf0s+9kkV7qkczzHXy7Lf+7aBcsEvEtqJjW63UP38vgRA
+3CAfTiy9cUg+Av61x0OZj8wgfkC1Q+DKfs8+qnlKTCp+IvNLcP1b3aY1O/HQVz8zq3yYuERCZQwb
+hydvyz4w9e3qglQaPYSlp74YVw6nZg7Tt0UC6B4Hev3iZe0cLiNWgobEwZ5cEp14950TNLci0/JJ
+5WDsa3f+bVHWsEvKKX+fAYcChGctb3tV9IFSLt6SyfGnXVB57VsPfu7Q4p1/JxjhqQsUG35DSTuJ
+A0C5+la4rfWNArbIOtulwNLaD3XNvocgxgFPbQi6kTeqXQTASbmfA71TpgwfmmDitzmugIR8z5iv
+Xm3GB5WV+C9Tv4QYZyT9FgeGdWoAP5F7KcLhQ9ptIL5SaF0e8k9AH24JYH1DTwzhKIswl9feH8NT
+yFIeTcZsnD+bbmU0CpsGAHQdyKW6psVbUHiB8hnNJydSw3yXCO7gLxOOSzb7OlUxoJPpkd3JwI+Y
+gySjYqQ2V5pA3ENeB1vqwc9TpDOX2yE3Kv97t85ls+/ypq87tjT+/ISi6/9KG8CuGCTXaA9w1nnj
+1GX2qKbytLIScqwijC0xQKkYAioeclWpFzmXjtxNUmbgSvM0dF9tMy5PpQWsnnDUn2CSQr03FDOo
+G428JWPefUn6yDxScZMYIcFwg9g+DHMSCRbfvCKcGnwu+0IH6fNUh3zGN14OS1m38T6aiYAFTZcb
+5gJLxqCOk5tDoktgSIKYh35Od8RYpL+4+9fhOeDSGsJJHGlMK4oCWkbGFzUXWlf68iyWuhoe8IU/
+2QNKsWzVV6uMro3XLs9sh0ZmwP5bnSbt95bagGvaIIYiHIqzKaml2kFOSopnN2rlS6dgCR1YJvLD
+QjB/7tzoKMVCG4nO/rRR0+1sYJE/3RC5eBU+dPTU1/VXA7Wc4unK1iouZLus5ybvw8PUofDfFnQT
+eIeeh0V2qoa+SGjn5BY1YTwwq4hrLBbpZlby2U6JLKJdkDYFaClzsEP7TeVdJjS2gUGvszz0zSLD
+uF+iby79CQLx2B5r8B6QPdB8fP+L7VFJR0sC8mhXHp0V5ksoNTkUHtrI6TgJ0lipoOguDL60+DQ8
+pG6DlHeMADNjn/UiWwsKraP10VL6CJoYX2sWWPZ6icbGfJvWVkdnYOiKptK2lYAnsToglp0VJojd
+QJlsPE7Ob1jTsdiaXQAhg8oJfB2cjPAHyRz9vWvWLxSao3qJEcrOJXH98kFyLcckDaiG3gbtvjkT
+t6IYTI8lTu08RBoked9XF4ztSewMASAhbETUtw+U5XiAnt+4NdkbRo+a4yWd+ER5/UO0wkyMsXrQ
+K9PmnSHDwPXkZOOUjdcyr/H7Jl7LJdMl3/ZQ5hlnMjUrqBKIigWk/qxvr2Xls50jWukVh1IM0Y0w
+PndAfylvTDCumoK2rvIOSykxJzqI+YZlcEpvGXLEM3vM9XfXVNapUYV6szLRICQZ04sTq4HyVpDi
++N0S9HxoDXerHxRWK++SqIjFeTNycJce4bdH+gcpTYEhi1yXqU7bMfGkrDlmVTc+g0GcvUsqOnI8
+WY6Fh8e61EuMkuP8sBj94T6XmaG0HoDXsqN8gufvVCpqYEgHPVOYTccwzQDDwA4JJS0OVZuc0yqP
+SF/NCR/eTncUhqMsp905zZK2v9U6gHBlWcvBtxMPSu4wgxr/hOGW67SeCwofelCZFb+Gn9Dj6vEm
+zAcenrqWqb/vQ/wkEGhs6srR+LEWLGO/b2bpJ/0XDhfZ94dGOPM9DI6sPbQoI3qfUlfCPYVGD3fH
+OzHTvMR9MrwZL+rdvcjHk1qQY/ZeFwiKUhQVsvvJ67LpMa3o18Fxt+ibsRvoe+HWHEpMKC02Aywf
+WBTnsYqOTWNAKRLewEFazJpK5DwbuuhW4/BQe4PbvtvXbjmzM8bQZGh/WXbe0BQcTFsEpClIH902
+aPpP0chf7DD3AVpD0XijFdMSmn60Y47A346erfYzfypVzlW0FHTzbCgza2jb+8RgYjhF3BKb23lU
+bv6Gr91qrxGAozMZmvBOrsZJSEZqU+4HsgD5haYjxqZmtvNXW4zBz3aA2xoX3C+XQz1WwLIQQiL/
+QN2uPojacXZ0toB0dtLlvXL8AHlqXphLMJQgOAP0reVp8ipEc8du+ICpiFb7nTSU9pChqPWDXS/l
+6wjrKT8FTVE354gzCwt82JTiwmSRgZSE3RcWzgmVHlWqGMfB3sk+KMQB+iQlN0kaoKd0MG9tDD/z
+lOHlohWsxW3PrmC9AYTMM6Q/2ya8ysbY527maQc3a0GjZUXyLU+Zh0+dspdrT4BO7HlHm1MQtj/D
+IKfNoojJpeyTRiy88YNj4omTPVQvLs8ZSm0Ry4InPAVflKLLaCJWZlNxIV1coeE1z3S263pZsxsr
+TzIfv1HuemkJBMLp+y6a/h0y1vvi9y9e4CV4lxsHPNO6t0psYz0dT3Hg+zGuXSQbb1ePzTfmrudg
+zG47xzqG5ier7W+o5T97Z7l2QxRcAgKO9hnoTHNbaqdrL0uDUWcc1z2guFY9Dmjt9s3U9pF+Dajc
+agI8PnbTP8/SuMF+GMuvRZXxrkgNyb+Jd2fRZohbSKkC0BdOV+BpgwrEE66kTMUrW85NkXXDo26M
+pV9tZxGPrcUbbE/b+aIubrfyNdU0TF5scQHI36wg+sG6aaGlRA1/6FGJ5DXQOUT7qbeC7YHXvosl
+mn5qv9+SvzOQROK3fPY2CJilzhPMYcXbqynsc+Ss0GinlR3ifhg8Cr2itZAHNTZ+gW1wXm/xFXXZ
+sQiL2b0u0YJK2kYa2WpmkTvQ+rkCCJQQxYWTX/s1gAZeUQeubisK14Z9OTJDU2fGtLOfyiz97jYK
+Oze/L+5ZbQum+85Sjo1hRSxqOXRjZOTRT2z7V154SPodnjr1hmhTsEzVnXWLD9tlwTXXsjj9r57w
+r3oCAQL8Cv9eTvg/5fe0+d7/owTx1y/5m4TgBX8BOiAld/TA/2zd/C9/hhdSriil5DvYAZ6ALZPy
+dwkh/Av9h1LYtvBwduCzRF74e7TBsf8CPUsAGdjyDcAGwv9EQnA+KUn/DdDY4vAIGegbAhwXPMx/
+jd13KcnNJE2xOU9BoB6JPyyAyrGMU4a1kgYbxnB277HFAd7s6Orl/CQYnZxW+nvoU1pqzNwrMRp2
+8xKLvr0LIZf/XtjevIiNg/2ixpCnhq5tjFRUTLzMJJ6fU7YfJSZXVH/iULq4sSJFcpDWZPYXbZ75
+8tD1TZmfbKiot2oUafPqVYP/zJ5N5lsh0ZyfbZ662XtUOVoeicjZ09GB6gm8kpu3t/c1xQgHUUiO
+FI9KjaGQ0ZflMx9Mzo2scLTFhqH4Uw8+WXl6M4wRDGFrixiHgT+UMexX6V7g5XX1ffCZSKZBkwWh
+ameeVltkWXiid3aFcqcPjfMMBKtetiBe0WCqdjtigyCvHQJYWxja4gmQ4uFf2vrgcgWioWiLTqvP
+FLUavIq1dpORrk7wx6yxZvTM9jRFFO+z7sPyvBp/co8bAnVv6S2yLe1tN1F8Jrk/Q93+lu/GqErU
+O3MXYx2czwi4Z2qv3itNWoTnMinxkSvxt+wzOo5nhhh5syXKsZYSLu8/g+YwH9eXYPCr7FAHA9H/
+5jOWPrq6/WM+w+qUUpLVmj5D7LhECbSvn+H2acu5d3+NvNuJMdSaU3O0D7dUPEJ0+dFsSfkUCsT3
+6jM+P+a6e2g/Q/UwR/kJFE0t3jnZcvft4ip66PgT/ANq0RzdYY/1HSidgf3H04X4o6LZtnbhlugn
+0GGoqhgtErZujdZ0N+GuDI6IYPypSCyF4dLNo3q3jJoL0mBn8lpJbpMHcL6SWHcNVbGOJoKmXTBN
+X0M665cLvUxsdfDcYT5Niy23GY5UhcSVsOClS7AG63We1rE9l+wC1xjeJSgJ6Rju+Xar6f+0ScXv
+Wo6Fp1XCH8cpJ2k9pCH6F2c0ajNdBY1743YAHaAraq2IQwbB6yBrgKlN1kVkErCB/PS8jY0QsP43
+B4SIgQYqFXjl2Q4kc2yEAEHZt9W0Ji6NxRA+9ZvxeQ7M1t9ELiE44dggRVPjM3gfRObUMYlFbPcq
+sFrnr8fDv21P/h+RO4/HiU/SS7gop+Sw/lmanEtrcNOVD3nDkvqXM/uKZhJeOSIJUvw1cfdvv5fz
+zwSn7SG2fTMBapZ0FoazfzGZTU24+gs0yt3UomRJnqpWHASyv+0s9q0L/s3jIIw5cz9y4znL3Uuq
+rfL8vwfi/zgQ/Q1n9v85EKvva0NQ4Z9OxM+v+buoLv5CYTCiuuNCZ7QpDP+vExHHIkQg3xGOR2ov
++PxHfzsR3b+4YCFdeEF26IKW9BHC/34g0m3MqbbV3ts4Fh3xH52Hocf31/9wHnqstT3phYj0sCno
+Iubo/Ue/oj9RPIfTrWXRXo1flAFevB5qgAPuR+EFbnU2M4l/Zz9nXTdjV0R25ENv6Axtvtl1QSmV
+aJEjELGt4ciiO233RedP7IAWbv3fuTIFVybC0btT9VaJYNOjqR+Emnrnhrd5Oz9ajJfpZUaRzPZ6
+HeliKWdt7RgheHyPo3geGApxleupOLHoYGjsSJMkOxOEi6QBuO3Ut5piT+sZ4kCETy21XKRjTCTH
+om+kvDHRYn8jqt3whyiFxcjBH5hGBgM5kqv+BcsacO1irdlrRtZpoizJBRcb5JA3MJwZyh/rkmoa
+/9byt84ksW5tTmPRjcnJ69T8ulK0AJi1CF29nCw9OP59nRt6EpalUz9Gph5cQKYdLmMXDNXWM0EC
+vkk6JO084W+cslJYu68pczHdEhOyG8EF9d59NkipurW8a21CQzF7mi9nj+w1KRyOn2BlCGnbeQzc
+fZpR6ZWfB8+u7ntG6Z3fz19rySWy13AennujivxmTnkQ3E2RENMVD7NSWMJU6U3XekktH/CsyhWX
+lSFSvyvV8sVWMzgKXIHsa4/Mos2FiSo45b5DtHDao+HmVH7heGWPeS5FJqtLX7Gj/OFM9CUTVyvH
+2q6K2PUEpVDUUgWkf366wtL5CoG+HbHccwj645H6H4NBKitm4X6hq1Wyz6itihoUiPPqBxyd8OCY
+tI0nP3VuEm3R9cBG/k/rDIodOxtpmVJhmQtdvfRr60Imqqjr4z1reK3KwBufsQZsShqGmeq0zDh4
+L3NTJC3gH79LzgS+DU1s5POLHptqZomnbugTWrUDF+sOl2wAVNzA+yW/afK2VxhOTY2bn5Nufu9n
+Lv95AUf7o+2Rmh4iTPvBB8l1qmG6XKXubdAIb96bAnWJG3U/uf3FsPlVP6XqXNeAZB9c7tcuBVhU
+uRTCexiaxZMjayyrGAn/SNUs5KUaAlK7aXFoKZnJBvixRIuO+77HobsAk78phPYeAfLMv1xjVXOc
+d0XxqFPO0Z0blSvQaBAik+Wbg+SNvrOCvtujT5QY8APzw19W/6MBMI/dJffjyp+KO54A/W702nK3
+kqP1ZpYd2NeqCy0X+F3LdN3jIDRwmgb7zE4rulDY7cdczghUsDXZwAjlER8AJcdpdO20Vz/5XJ8P
+S+Ee7IptmunamyBC1LK6gsacBCnQ0v4fCgXyPaTxp6aHleTn3U27uuuTjTyKET805FWGCLa0P5wA
+Kui7WvRih3IkgUwv1n2yoEGFTfFA+u2HY3od+7LMzuU0zqeqHnx+C7Y+Tx6zVOlizZD0cRvqDuwQ
+q2Ow2MnZAThEjtJ+6PjB9ohgzlkl9BgDTGnF91EzY/QLl+qpDZ0j6dh6IlCoIFREyPwlhsdJXs1Y
+vulQ6a03i0TYWDwCISHa5mQYO0nJOMemDpsDFtb04vphCWSLMUIUfbanq+i7lWwN3Wwwnit3hLvd
+NeQxjAKz0vXddbYrjBzd6J2KrrWAjS9Z9ryyDKHtDKEBlAJlJ2vV3QRWYb044+h8oBSX931Yhweq
+CHimRBE9owUdhnY1Ys0plxC7nBUe7dGqfll2OzPTzFjBKuSzj0AL7zK7q3vwbJEf5zma7gjEzS9j
+N+oLV/D+TsnwgxCLQ+XjPNyMKBOwJraO0cStbzDzZJcOz82uDbr6lDhpdWmk8Y+cAT88d7aOvQqW
+m8XpkpgPF5XFfJpIpIzZqTNbiJzVx700Ux/T78AkHJRBdM4HEPJdkKRPVekvD96WqCTpTM1oCYHr
+4qwsFDFPjl9xolm3jS2Ps/BxpnTzfIoqu3xrOtTGtne8+9S29D7wMme/GFaUNUHRB71oF2jNFia2
+6z59wsKovqoqp/qqW3ke1vM5WHwZ+wbVO8qm6GZoMuvc1rV5sFWVvPoJuLEK53CM5Ef9eic77Fxg
+1g7siCivaMRITtiuyjMp4DF2hz5/6Lq2uCt50Hywkp+viZbj1Q8tdkxsVDj3htYE9gmJHHsuHJFd
+tvhM9PhXIj6aKXPzWMhU0FpmW3iI/fUpyzQVu/T13UJWS56JMLwHbi7vqSrPLmEbACGqTOb/pvxZ
+HQbVc7v07TlWq0mOclW0X2DStnaAgJwXKhOy+wWveIWA75if1FYMm+NjwmpS+AQoec4MexlU9WV0
+aKaCoLYs5MBSXp92Du8CrSgZyGQv/yCYUT4lE0KQte11bKNakAL54PrUSnIBj5u+C+ZbllSaUB7W
+Vjo3i8EWDxj+uvc+xMsQF2Qbf+m80OeSLFOw69O+P6VZOT+2npO8NPmMOt7rsGx2QWQhI/e24YCQ
+83DPkrq6U7QzXKYVlxhTg3+XTT14+orAnWFAOxO/itjRjHg2nQUr0pDb649ylPYL7UIfAeXXdElZ
++UBmsUfZ9QHsNEiX7/ZM4/ckWlaMoSDpEZZL/l30fncVOWAWv16K44I89mi3fQ8tSuLLZ7Ln9+cQ
+A60LMmm0vaZXQ6vmfQpeqwuCgHjo8tDwM9eT+w1NAjrUmtvncUHNpCPoS7Mkv9cWca5uy+Ro4wHL
+x9TEnp3qt26uHqWcvySaa3hYVPqast0/hHrFtoeGtg+Cuf4dRQXo/gU4QYmn1bF8bAlDRhPMIn+t
+22eTuxb3y9LmXK2XgS7VNftigL5sSPt7V25nQ5pcZ2kHmNnR+7yWm1td+Q+zn9sPtUjkeUhHzTpB
+2o9NxQ4GExfQNed5cr2OT6V9G07+PVa/i8rC/tXXfHrAyZBoZ6pojiE9AAc0mRrvbc1cR3zbDHAh
+QATMl94MHOu5a+18xVKC0xSNQxby0UgDSMfvv3NfnVlDL/WVtV6NH9nnV6X68FSvi/tTWzkjzjQh
+qGAAhZk1ImdMhuXJ57KZECmb7ETwYMJMgr3CnZIH9HjK6UwrbkYt8oPG3P+I9SR9KOizuJA5Zs+Y
+jezNGs/bh0yHb2FPdSx5WA6SNOJbpVPPRJha2qZwO1/BVA2Luc60nFwrgQ+twqR9Ru/M8BPPag3P
+YZKE9y1e8F8t1VnL3vMxle8UHJ+4Cbd3u019bxYntunvBM50onlTGt0Xw7QRprxs/tFruhB6EpX8
+SB1J1kOKUjCe+7TdFuOqXN07Hkv8VKGj1RNmOPVE/pNAe0qDGp+ghnG2cdCtD7RckHEqOHRiKAsh
+Ttyqep2SfPOFVNP2JyyKdXDvt2P1jkSErOAKjsie1kGSLmCpxTF1KvdjNi3buqitntKM1x1wI86G
+K/wJ/5FVpdcfFmphTrJDsbo2eRd8YXnj0ZWB0CTPDluTcdey+fu/7J1HktxYtm2n8iaANGjRBeAO
+93CGVgx2YCFIXGgtZ/Ptt/8oamJ/IZhZFeHJjDC+djWqLC0tyetQV5yz99rFCQc0NccxFSE1D8MS
+Qp4qp7iUqsJQR08f4bpZrPF7XcnLFXJJX2KHiGkcTsKuss/MqG0eFvbO0UmdtZp5H9l6VR9k4o60
+HfpaIG5mDrCECrnUnM5A5VgYFqfgLqeKYcJxa5HVjj5+I8m+geXC5ghdrLlQmgPrmJDHoUumNeHX
+xqB/omeVNl4kiqX1e0GAanHF3qXIz8aZUPRvCuZNhH3xGLOZQsIyzPskzgfjXAVyR376wEYc0yin
+C69F6w3SzrG/z+OQPSCksPxskR7TkLhOJ1ranUUyoC/awrow8TTHzywRvbgXixF1e2cs2TVk+O51
+UF0ijroIUVOCU3cqta6BrBjH9bWEYUp8BU6YZkE3YBVAWtoa6OBruyY+LaNbFCGIaJznVLMwTbgJ
+vDxEmw5y9A10t7BkNmGPgrllFomX0OQtffAjy1NOaxgXQOYQnm04UXbapstss+2l1jTuVaqy9cM0
+sRdf46iqorqU52k+BXfXPjRU0AhAEb3TfOcwe20L1TThOlrllQVOLdBViR1FdKPodjPu+9lY+A8N
+1DyqNywcwiCb0iecZNShJJn0+7wsHeRSyEbldCTtrn7CpkbjCXFUvFybMUyHTaXNEA52AATt+ZZw
+EFpKmp1rGOU7nX2LX9vVPBJ8j6tooxd9t0RulyconJO6KnHwUO+zrjnstOHXxp74HOSmorchdElb
+00FKanlkGFPs6zbsJePmjiWxIInaJjCSv9ZEk4WpRDY0Cly9U5UT2l2MyDRkcRzwRhQkRbX7ttZL
+h11vn4xnKcQWRPxLLrptBVOx38SsxQ0t/6T/ikGHdjOY2lw5w9OjXREn1idoyPrQaqxtI6skxRS6
+1D9rkZMihSfKL/UgorXiQEt9jg5ktlj59VBj+fKLPoq6WwRFg3UnIlRriBbaFasXdvahgugSASPs
+ZGOfqFm5SylmlXtLHxDmalbWQQhUxoS+uZHPzbAVlAtNXwULdOYQjfWSTIW80dW6uB/NabrR0kE/
+TWqt2Bk9+DH2IzbSdLl4ikFdBhPoH+L5qsQcXuq5SwtWOtnsT/EKKpz/C5tXAy7pjNbXyevxR2dR
+dKTYH5FpHkS0obfFKjcojZDCP21K5ClBxfZh3sYSfujK1Z0aXU5VK4PMglSHJuLyaKlDPNxO1lun
+OlJDiZOOYTTTCWauQaMtrg02b5g0DoPhO9bSHjiGxlfImOnVb/g5dBRBGhhGdG6Zq4Oa4ro+mmpH
+0D3WGSB1fqguYWM9sO9arW9IqfHBqcA40vwnvP2/dK83dC9HWcti/1zl235/+d48Zv/jxy0t3/cS
+3J9/9s9qn279QVVOIwbGQBG72on/Xe3T6X/Zrw0nWWWe0VcP8l/9L8X4w0A8ojiabvwpk/13uU+h
+gGjIRPj9ZV7Wf6f/patH9T5dpuZI1VAny0ZVLWhjR/W+uVnsNqfxS8GNwlOqmKP6PA1qIg68jmP9
+AgLAsbBSWUGd1F9C2wiWUt0qWnvIIwg3+IAS15orP8seGgu1ty7v5QhSQI2QqCyvCIsnEDZmx9Pd
+L2n93EwlcZW2REZ29b21k5M8xGcn5Zdj5dRYHwrPUKAoq+a20xr0Bpw7Ko0QPGd8YBIP5lDcxUsd
+jIONOJd2czSkXq8twFidi74ywErnm0Y422HMsUDi7XHoAptTE0RqTMYqsd9mLH830vCazt+usIn0
+RDYcdKrzMNIEmBPlRJ2r71qvX/Mhn3VGsoGdHLRWvEPuslPD7BTj1F5R221ShFiiIZ21RNwXWvUA
+4yF3YyM84c7Q60fS9H2sTjvzRqVHriDBq/q7rLOolnIe05YmKOrE7boaZanlgSrZQegJCof80aiZ
+XFNLt8bc3xayOFA4IC+cbhdc45ZjfdIPmFi/ofylLsrmhxAwm9qK1G7TWN7U5L7KuKQKCQrC+GOe
+b5cE8A8mL6k19mxc/aZV3dKZTywkpRTM9tBHXdOw/HJ5xFO0njjcfij3eo3aIvnaFuwoMeegSKCn
+AzCEQPOsJ+X2qpIR0Y33UTxtY6MMGh6ndRaBOG0ji8UcdeEMEWQ4tbA1mMj0GkLGuFbYHBtkplTM
+tKBSm92qtCnqh2Y8aaZxg3WkJ0jSUD15vOrFneiu5/SH1Hbb0mq2lvZNtAiCkxMpu1IFR2hnt0ht
+AKXqBPcgtim0qjRk3HJ2PFqV16qVb2w5eaC2EIQpTGfT+jJR5htQNOlJSFi4IbZtaJ8TNbujIru3
+LPM+FdVFtBj4fsddjFKQVEU/dniCXXiHBsZHhXrWhuI0jLpA0YwA9mrrD5WxVVp7zxe1xyWzjYW5
+t7OGklBzZupD0DuE8qVhQHOSpYPjZZt3PDj5XO3FaTwJrirlJZXtw+iwqTTU20rtsLBjzVhM1nXg
+KN6Mgwcx02aetZfYTrbCION7AOehONMXpBTILeSAdRFUS0h9Dnd1kE3heaZpJ9hEA90MvRyWBbpr
+8bXG9R7pzo66HAe4stqJDIqriqiftUoA0NZIEuy/RmN/D9wOQWMGmZ0Z4KoRcAIi4OSRXR9muQrI
+Z+fri+/nWrX2k9PvlR49k2h5vVtzg6+KJMwx2UCfI1y4Jbk4s8sSs45xbXfzc2lInIbjayYdZKrS
+eLfkdcZSaiW49wu97w0PenVo3TvjUC+b0Ug5hKANVLtvUqzbQ5Av486mXhuwW312hq7dkGVfIWp1
+MmpQwJfy2HyuEGShwR6Ss7y2X4olvQFcl3k5ykXaFUi79D7ZlxLlpTSDRq9KSf6kNkO8DcduuEqq
+5SYvuaA+rQ/T3LT0tzGkjeKOmWfbRCqOG20XmalvOF8147K8S0FEZ7AROrvgDLR4lhrj7JvXFmau
+bcuu3AL2YhJtN/RtPUobF+o4bNvcJG3ZUX6gSktovmskfSJHtkB+aSn6bx2NH7bbcFxJK4QWvsbr
+0TQvsW3pi3PdSAomhrF1+0Q/GKiAGgVOBFF2qq/AlbPU8jQ1x9O4M3ZYS4O5nPyyWH44+Fo9KRlU
+t6lNn9yFbVcsLwWq2spw9g5ap34oLkxMai6RqdcjmeHmqO3tvLmR7DAgbfUe6Nh2jHKOcwolLHmn
+ZInXmelZa5EROTQNiZBr+RWhrOj1AEjSbpkX2yUv7TmZuy9U/g6Taj9lscJ5Lz3FZnQ5Jc5eLwFJ
+F8uDoQCQhcpubsxInANnoAxZafASoKO5xtAIZeOksnNaNMaiYQiRrtm8nhoLVsP/9jmPdzEKjZsP
+t0CbtvrX/2ti3ETXj0X3Libvzz/75xZIRczDzkenDy4Te8Jx8z9bIOUPTg2mbjkrxPRdIjImIsxF
+Dn+KfQ5Kn1WW81fDU1X+oDfK7gj0i8X+yPotuKl6vAMyZMJDbNO0dfZA+D6O4bhZo+VD6Iy5B7jM
+tigQzOZjLPVdG8hI4UDKOyh0QK/puCkpNy9fUupxINsXKmaeSNYkAN2MeugbnaNFHmNFuqdDebhx
+VFmcl52l44inPQ/SZOBIxy6s+17VaQ7JJFnrqIszUbMf87lzIZqqJZjkspgDPZOa/KudFNVjJ+Ab
+0KzRtHETY3EmIlKOxWYGdXfZooONvD5qoydYz6APCnjcqASbAZWdKi/tPcAvezpYSz3etjKlFII2
+KGngC7S0edu38fwoWWKsN4Zhw3jMMwc3oY6fFjFQSa18xzQ9JDh5IlPZzXSQcDyNTaJCrCLVIj2l
++dhE6L9VWb1WlwX6haukmZLclENLgVd0jXVWIBN0AssAO/9tykHL8FEn+VbSS2lBItO2igLLTwJS
+6o8SXawgkeW58e0xFQ9QQ/VrvBAKiQuzpIGdmbUs3yCWbQ5LnhrXS+HgZFSUUqYJnGiFggrEgKQR
+d5r1NczWUmxINE6Q6nV5LeMH/ko/UUbGOGfOg6nG2dMyk0OCmJ/q/MZAyz+4PdAWD9UXs8f6AGPa
+ojHn7DwZQpMOWa9f6G0bXnVduHyfh9R8dMxUfWxEmC2uMgG52HZlC0ldTAOdya52qFwL0xq+yYpN
+mIAZ663w8CTY3U2M3WLP3rNMziMMzS8Z1AzLx0nTNxvSKyoHj6g5GlTWGwjiwCjs7gzkCdgPpR51
+NjyiHR6EWoHyxB6dIqhUi/gyVhYBNmuWasBsUifddcscN16CngoKI/yCMwt2KHUa1oeJdAqrOKgU
+sXOQLmGO06TuxqskGy1kZrmmfANLxLFXrzpuQkQSRsK7wcuBc7sq0Wp1KkkIglgT1gsaopcaqbI8
+BnstX7NjhFFkc5RqXERNsDsrAw32ti1iWcbJ3yHbcVJ8V1utLtii6T3A7SgqpNCPLCWpvdmKeBeV
+poM9U5tlbwJ66GXHzQDT4HmaUr3ze6WxS8j2sfFAlIycBAn5suyBhJ5NEGEHUUV76peYKyg/96iU
+lnGMN3DChx9j35fQ/LBF3cMh5W/hRGf8qFrMj5sEbADmAlp2j5WBttkdSLil9Qtx4KK0NOCZVS9U
+8sHtCTOOiJaG3vJAgq81Lg6I97y1z0IH0PAmynCw4zCycfvMfRn7Bmbaa6vW0mvYxpVPRU08da2z
+KF8o0Vh3NaRLKPCpMc7c6q596uuqeQQVUA94PWzz3kFU3KOADQvetTmFYwbmCFcaKvr4qW7lDG94
+GVFCm+PScnyHzwBwwBImt0pddSeLXTKJvTkFX/xUibzN31y1IW+0IwZTG2dZjSMvwhYTmPn7s2RC
+uy6ZG4ZshjXPGBQeuBN9/k5b3E+Wy48HOxJYMfEbJnQv5JsQJFlDjgRWRAqn4IN0WhXwQX1FT78T
+gtH57Bw/Q7Svmpx313U81JEmxgkNS10MEFDxnNvthvqLs0Elka+mNxiymSmMl7VMuu2stNg3vQDM
+F1lV6IrWsu8SxK6bj6/9iMf989pNWnKguqnfmkc3WiyzoDkL9Tgie2mP8xTHtFUXPzc6/ygr+8Xj
+ZJ1V0XTKPNRXFdNbKRD+Mm3SVkh03DYIfmaBttTBwHnBRlI/d+yu3ufEIXxybUf5kKRRvG4VdBxZ
+1K7Atx1dXGdrlcOyisDA173Sddx4c7+4z7dnwr1o/Ue6Oy46Ge/jO/qLa2V/8p9BEVi9vVbbwv1V
+ZAxqG8TV7+KeL5vDgVEgNlXtTwY7fnWPr3B9vG8SMCnpRp2YGEwpOCIPIUCksulPBrS67seXpXx2
+XetPeTNU3hatla43s94QVO7VLh1Xt/Rwl/mPwUPr345u9Mlrc6xG/NsDPPoyU93MYDy9PkDhoRPw
+4DO4+B7c6rOR1qdyPOG8fWpHHyae8AzZxOvVGb7sjSete4fF9pzD1i3u758EgX/8HpTPhjuqlWka
+shDg5kyp3hMGukD20g1AobN4H7pZ8OmzO552jl8Tds5vn50zwR6jI9W6o/fE1+A+F+7JD+/67uNX
+ZP3R/3wPEd2/H0XHppqRx4Q7csvuwqPw7RXep0/q42sx5RWT+OY9pGGh6Mn6fZ3Wm6fUu/luBI93
+19onr/tn17L+ijejTNgR06pgFP0yDGqyiu7oSZ+En81QR3LboxfclI8mCwdNkt6st0za0Rv2cFC5
+z9YptuLdx49G/Wygo4mCbpAAE8xAakBfkqkQSfsZbjxf8UvP2BRu4x4a96R3E3e+/3hs5eNJiqPb
++3s5ExmTtevLji1hS3/OvyGExf0eupUru+VWdcVnt/XjuepvKSVRN+GzXG+rxtQPP5yva9ix6Hro
+lrxqU2wiH0eo99liepTSerzgmK+JiW/eGktXerNe73Llf7sDBOAV7svJxeMn93Od9T76zo4mDyoj
+hEvU69VdqyftXXlWn2hP4QWKcHqp1eN8U5zE59qFcfPJuOss8dG4R7NIYkNt61rGhRnsZeflaehT
+3HEN7xZ4j0/S+8xbJLs/Ppu+Phn3dZV4c1czIIGDnDJut8V94I2bMtBOVf/Tt+ZX48D+WJEiBpXZ
+FSb79ptvUzsv5HUxpam2UbhGzXcYUfecQ+7BtLlsLwpvCJpA/+LsP7m3v5rV3oxtHM2dcZ3M0OXW
+a/TRPd9lW0zx29lH3LBXd+HPXcN/O29vOm/sN20mmn9uvQVl/K//076T1//8I3913Iw/qO0rqDOc
+n2UlXoe/wnS0P9RVIE+1CasESi2+0H933NQ/NFxlUGkME8cazbD/1JsUB8eZra3GNkdRaA3+nsKe
+8tS7DxIszqr8R+ivmwo+NvvohVV0QfRuCmpFWCX63hRRZ7UfO+AsVMvGkIDCfnIgxa0tFiRBqbMJ
+x3b5ERNChirQUsSLHKYNNXcj6aPD5FDt9alq0+tOwYd11MUVMGiFZC75JZqtTrvEoD8sO9JVB+ck
+hI6mTGbtGbBig75KaoTaZBpu1F6DzJJh0bJDpduivm09uhovSQ/0JMv66nZu7TV2IWm/L50uPyeS
+Gns4bIuNPWn0Dmq5RoRu0MVQJ7PD0tt1aGTk8trR9cGfDGBlJbjE2XUWBN8nnSaNT5RWBKU0m8bQ
+ZsBPTE18qoBSIKbA+5Oa3BUvi1VpY5qJULGhO9ZXs+9s5zk0Q0Tv+liNJP41UtxuBwqKaDeiEn+t
+pImxOYWgYcC5MUEPIoouHAFdtWublyUByOdBDsJHLRug5THaJotPwoR5qHvwK4MG2xsMYC0u9Vmh
+tGFlUKnuC4moyyJfc8Xk2EBEulASSHEVrDQ2opDmfKNLkGx9NAUoOOgATjeJOSaPQHRQKyZNBXZG
+J/IZnjKVmUMUrjQaGhyrHDGvDfOCfFD+E4nsiOJ6MLQxQBtDyqk8lJfWaG2VzNibxBfeAxxj89nR
+zBmQmpwKhHqYXIHGEOvQ3TYtkgcIFw3Cca1G+hoKyStR1PtFBj7GQjVHfkjTu51UPSNd4iVU5/ZL
+nCU/xCL2MN4vIQLaOL3wxiGRcTu5O6tqftVLbgoQp+NU3TpJ82Ll0AEOYzgBONAgLYSezRsfOGZp
+wvsLs5q+YVKGxabKQ/yTY5lmV6IcW437lI43gyy42gp55gnpnc9E5vXRFnOGGtLNKpxr4EvR06SN
+EWwEjfjHPXkez2WKZ34uts1g7IrFfBFEYmzsIqFXg0w6MpcZqS9OBEMcms76krEn9GzCGfcAL2/a
+TK7cLhYgPM0fxFNdZTgPDqNi/yibGDy2AWxYzdg6Qp0k1cULZ9lHnHyD3v8A0f5xsu1NJhkBug26
+rXXp4zTINjIRMG4fO7Q70bF6Qyu+2AiSJD2FeoIuvwgWTVWNbWFNzqGG/HFq43XIfdwAZ1M/HDRT
+u+v19DyTxlPeeHT54KnsYQuLMj7p6o4gV6lwkgszW746ifaYI9bDegOV6UqKzPvJnIo00COtvsGC
+qv3I6JQUh4y6CC+NZm7VWXvIcRXyjobVcEIbvXwBxDmk+6mrY7HNCVEBCT3p6RmlS+wTNE/G5ou2
+xP3FbJNUWuW1tAeCZ64KQaPq91OuxJtJbQeHBm2H7OVAmpx4oiJmyFtlJpAJ1iY7VqI1tdohMiQq
+rblw5QSrqpfbeeyswTuyOBlpSMO1kgSJt1SN7Dk5mzEY6EFsNLpzCOuGgkqOIgDpVUXPkKJ1rtau
+IBSlwwqqqJVXLSLSPKfJU2AAEVtVYHKoBK3GPNPq1sabVMx5kXop0V8OTkdQQ1Th0upxnEJYl1gZ
+b+baHqZNjzkn5cHV+FLGCh1Qi3icDKZCGm8gc/Bv9dTINKQIM7NKNLIIAVBqmVvKOMSjExnARral
+baOBLKMJ2hR8DV1v3CRe2YhiduI6MMIUKquuo+z8mWVpw3Pu92WSMPelaL1qotXmFj+RNg7h+U/L
+j4y2eW1PqMxBY1Qht9R6rVIDTRJdFxBMhjbO8azKzreyBMiRIuVpVs2yB3fQDDBqRZiy+v6BnOlz
+Rc7vQ5FdVCPMgqgxXMCm50LtEDYtgFFp7HFmN6dnM1zMSwLIJVRPOhHCQDf8QVa+2xgNg0Uq8ZWW
+4YJwPk2+ybVmrmXGCKppiLS+US+qcLyZhNH6cUYd1Om6eJ/iJL0oKWoFUozUfYYU56NTO4tF0wd2
+kqsedVj6lQimfdYA4xzPE0Vlcr3OqcCR2gi5AB9ybntDn0Hexc8QIElGo5fq8FSzZfqixEbhR6Fz
+qQiJ5G+9H/yYH7EHyvW1qFamj6nFJ3Fujxu1rvpgccT4BQX1FNharga9MT8mY31XFwp0hNA8axW8
+mvUs1ydjNMrXKXVanEvCxwZ+W5SZfOKIctlhpNMO4B+Zc8Mo3poGvgRT7ljuLFYRwSu+qgJ+KL19
+kDXYIzU/xVMSTfu2RJi4mOQ42MEz8c1K5LdOl0vkd3LpodnQbVWxRWR4oS4rtMhbe1nmzYIYYREk
+kLEm0NsF08LnNJ4JXf3WAsh2DdQMhwZ7H/0HzThrh2k8xLnck7weArSKzcSzzCTfUfVLsNfBy7mG
+l51c9IOuPvdxkdxF1gA5ScFdR1z5bOtXLJ/GTuTqhLqD70HBPjRuBt7rBx22k3AtRW62St7T517s
+Qds1tHe+wsohslSGB1XwKS8dOJ5uleBiZH1IRN0dsoRCujtGBfYVm5SVawUB0J02pfnXZmhwgldN
+/iBD4EjAVE027FpJu2TlADFNSlH9nXcoG08wwHX7vpT7O0KRxpehq2dibopsLB91ZlxeWSW6FMqi
+XFDFLXqf6JeQXrFT+CuCuYWItnyXHGDM9mKC3FdrKQCsIp3iEElsuDJVdb3K7NKNLhRkFEWkQDBF
+QNxtgJtq2AuYrHLOUGoIuDQld+8OJ8mLiVX6QphT2N9KdVOqGrBA8mA2gwB6Ei84gTZzB47dVZOo
+VFd5rKz7diLi65CJF5duD2uOdX1fa7jLPCjx8tUErewJ8nm2ZbFT/R7lUuMZY5/fdoWuWH6rzd01
+vJv8sRswfWGfbKJ6V/eIKeImnXtAW7bygHciZwKLMkIOiKvbWGHenHUlAbnQ6Kr0kqiZ+gkcW0a7
+qJy7hN85zN0Wlpl8OeDtP7AbknOIh5OBJS0eVZpVi9q4FkLIp9Qiq2ePvDcEkjaoomHnITl404je
+YcJsU5UYR3qf0ctoy2yY0PZ2xLRmJZ6/zDKUEwKlVib6wLQMnD+m54fNDh+86ltSpi10Oaw8vszU
+5dloxdeFM6E3kGmeDdkOZxT3bAEfvtfSrvZlmSVbJy3LB4JyMOXlQhNsp2QbZ4U1PrVyAeAfwbzM
+d4WxjA3OhgWMZNmFnp2u5UztUcamLUBMMm6lAZzcVufkwTfzSjQrZW2Vs0vduLXLlq1M2bziBTGO
+jRsdYkp2Qj3DRvaEREFnlffaqLh4JSbaMwqvsZ2gCNbCQdYVFe5A9oLbsa3H2VgTA0+jrOokoEjj
+UiDFx3A0LJ4zxcXkSapejtSqc2iKKWD0LwJxXnLXpMCuL4vF6errxE7ieWuWwI8mDZWNq3FS5bQ/
+qsiusfZABsdvVQBuQaE836YGfRskd3n5kgiccbWdbIoaPFhe9tZ9H+UWYAoL2tSFZGvrIUGDP7Bz
+1JKgS04a9T1iwb7a1jkhnGTqcTNAvC3I2kIhl9taYDwkcNMZX+Z+uDMS09oz94KWdBbzgsAAx3iK
+015XDwh0+3tdj6ugHcruESeyWYOT0QD2oGUMzwVrzYMKQ/MM/XNjYaILz7BjLAQ/L1UpnZD2looN
+DKMw8hY6VeGKe7b701jJAaoLZyY1jDW6UYNk1pC3cK5IjDvkzHBthINn9gvejGkJOjGDZESrVO/K
+wjKYq8piAPPsqBV90QZjb2WMLdoukwAoV0+KUtqSFafdSniJAo0evJuwmZfO1tC9TdHW5CxMKli7
+U6XgFuzSyc49q+zM5gm3Rwk1qBKtn2hGO3qIA7R6o0pT27A5W8rzwpEseL251qJAT+V57+AboxmK
+YSWlvwruyQMSrbPaqkjLN2LRRscPDa0aziprqfBTtkQZ11ExblpNlDTJSPHzyHLG7rluypUgK1W2
+SmQkVzt7ymMbF2cjw0eQ0gWOQ4gL2tWIZiCfARg8SQFo1sE/2orIV0/kVWKpRKqTQ9KBq0C4Lb5Q
+3Lb3fOFF/KMc4sg4jVqp5L0NzRI8F71Umr4mkvwtqaLFlU7r/6q11GFVDk6PgIHvW961yySOFMId
+Qo6co15qnHbUMQnGKt2HMXvqgxL2DvwzTeoOhPbh4CYLtT6LpaF5MEZBOIMMyOq8q7hNHXO9Z04W
+okWrpWXqFLtc6qE/KdODXRffRB8NqKgG6YHjtva9F1Mdn5d8T+KSrx1Wu4WAk8NvvhNLdGhHhE5N
+iQwNr9nFUpfYKOubbNYwN1bWiS13lC/Tmg0n8RB+osqwIok+U0BmbelIw6HsandUUH2j80fAl/VX
+BSVCfyE1E4L2bHh93ZoEjcu4O/PossKn5oqKQ5REDi37valJL2cnP9h5eKLWOF88u5vYPEYmnp+8
+KTCt69+RQTj2OS/oMAdt4uDu1DWZsz6KDpSxNXwwN1NBJnmwYsr+knVB8YweBsE+THtL2uvJhHXW
+krvauBGRUtwg219qvxd4fDko1W25Jz4VM8/8ynnUX5mPLAvwH1MNrutsGVAhY/SKlwlCZHMLtA1w
+ZPIKkUQ7z655lE31wXbEelAnVexp5F+DckwKLboCgbPyKMPCDqxXSmVtrpEvg61ku8YZ2DW+wiyx
+vEawtiAv4sB8BV7qr/DLuCNAI5binZM7xOSmIr3jYUHKHF6pmYTFotSPV5imgrw49SEVKve1qBge
+CH284jfjRF/8ToBc6WPE/VmoJLf5K6cTewwTIm8B83ZrE4rwk+nJHEGyANGiwD6jtEMJFC82lkyY
+/5uIg9jkVfmKCwUAqj8jqZGwBbxSReVXwijJmcl+HM1mn5IDFUjLCiTNE4Lbf5Yu/1tMfFNMRHD0
+sYjt9JGEbvGv//tOvvbnn/qrnqgA5dBsWdYMnf97LRr+WU9EwQ91xdZlTVaAZpirRu3f9URE+sjp
+HWqNCtwrTX1bT5T/UA0kC0SS8QNNw1Z/R8F/1PLSqEnqK8Rq/XuAYh2Xv9Wk45cjJnWbRGoWj2CR
++OsaM4nGuwr1izodgEKktoCaa2UZ2Udvqq8XP/sIbyUfx82TdXxjrbpbBEIiC31tQL8p82sq7Lmx
+k4EKme0FNc/0RuEw7A96QygQIifjOtVyMXKiGRFwq2EYWq7UtvUtxM6i+r3+388fQ9UEzbSjcG+P
+6vFqxnkFmRupajVblGzou6fRnCWfBgFyoTlMT1v7DgSJOPn4Lqx9uDc9lp/jwt0xaGyuqOGjhqCc
+O+A6K7KS8X1npddRWlwCZ1Di9pPbfdSUex0IuwZvlaapBhXk982OvCgSmFJF6UZtH97CptY4RSgO
+UQGx3lvBx1f1q8FW9eVas0OLAWntXWelwzAipI5MF1LG5JNKKfuzsbAkfzDL8ZMu1VFzbL0u+n0M
+YwB7A3+z3uA3b5ES6gYSPK7LSqzwJemU+dburCFIiyzbJQnwk9++NJNCvm7xIaq2Ih81ijNdYp2Y
+mcFN4tp9SVBIpUrSE3Jj67//yOyVA8VUgZAGov77S4tNMF9tlyBkmXUMNvrUw3Ql+ULbs2Npf1Oz
+s95IhKxcGOA8mW7F0YXhhTNJ2wT7SUBG4oXlKsGX6mkkWsJu1ZcOA50c1EhvftrC/lEbcdTUeB0X
+zxJDApcygem9v0oM10qmait6cyxaUnghB5ypswxesojF7Vjq5Rd7ENL5bz9GZMPo8Sz2/vzD0ecw
+WAOaNyr+Lq8ploqCrxzUN+o7i73Tx0P94g2l/aIbaEqY8OE0vb9AdtS9haeICmRLDCwAZTWYzcHe
+9Q3Bs2MRST+TP//xhv7i42PhQNvFXIbZ63i8erQi3JgktZStbu5VieN+Hhn4qWz6FR9f2i9mL5sD
+FFEPFmYwbLjvL003MVJEc8hmGUbCmd7QCiHBTWz/F6NAlTKgMpumc9wPlmnoIPxlNqkT8hHJg7YP
+Anz66cej/PK20cJfAVYswa+JEW8mkpYWUgMwmFEyiNoemq9s3ulkR3LkJ+C9/mSK/NVbgXxcRy6P
+y0dnKX83b8nyYjYUzNYXsLseuuUyL2uY3XjmADEhXf344n41GgQw24Edpqv6alJ8O0uS5ZuYWsXH
+3cx1dFLEjbZtOfHv5WmqDvCb+0+u7hcvBjMyXzMtVcY0jkQ7qaWS8CXhYx2HqgJLK2R18KNSCT9T
+3/3iqTGEhg4fyb+O3PL9hU2Vrogu5jueBiTIPv2B3rfS0qb6E4fN9W/fRW6irqjm6i7AZPl+sHBS
+pqKLyGU2OXUAfCCS+blodMI8Qwl5q5sNuvj92ZEVm3cewSo7RX2dPd+8lUtp57i7IFQkQxx6qcQ5
+bA2iwveDaSekEjRNyuh/fJm/uqcK28J1k0lfe/WXvh1TdAmUTAkjE2nUJyqFxk2WE2ia6upnSo9f
+bEFZvv8z0lFD26yAPVNtpoVEP4hKPJXtO+Zr7Dq0spTG7UDJXYGSLJRNMg7GZy/PL5Yex2Lyste9
+CmvM0c2FA2lnolWIkpqWLlhmQ7pYsNP7tdHWm9VMgEkzDu8/vru/HNRcpxk+D5wjR4M2uTMqsQ1t
+oh25qbGTpbf5bN4Ks2igrNTadiTJ4pMx1/t4tMtcFwJm0PXA8Xeli73gP9NgaeZFTV+KCDynmrJ7
+LLHJM6EA+Tcjl0lwleRmD4Ep/2Ty+ftT5i1aab5UVDm6HE8Gsk7YlpaRHdtbk3IJbmV2M9FE8Kjq
+/nSxpXDTgpg/lar2k5Xw77PQ+vry5RishVipj7YWcLkg1U7wn+FFaefroX6TaIn6iZz873OrRiwR
+/iRoxRr/uP6KN5/oYBV9HKvQd9lgi28RHB7hY+EoC/DSU/mt643oE0XY328owzgqs4HJmmgcT3qC
+Po+Qqbe6eUetAYNRYVw4JHDhQ0n1eAvy2gApTDCMS0JLUn8yPfxq9NddvbKK55FOHV2vRGUJSSZk
+mKrCVmJJFYQCiGxi9KDoxoobF+Ey+tUkU+Yda0n5/vEH9PfpSWNNkddVk4WMw+P78U0i/tg2M2mo
+Ex5H/veYggkPVLgTn2w8fjES9i6SrIx1QA7y70fiLKE6S8aqWdBALMixt7FUADWCTwl1n4SAjy/s
+718pfn+OFewTUedjT3g/XJtIaTJ1NNRNskBeWFAAB+HPVtJQ2XRdUQZRPtcP5CFUawVav/t49PW2
+vZ8jGN00wHiym4MFe7S4db1JRHHL6AKPzkGpTNklQ1r97U9yHYX9KRth2UGj//4a+ULsmFTz/8/e
+mS1JjWRb+1X6BVSm2aXbUAw5kRMJJNzIgALNs9xd0tOfT1l9/p8MojOMvj7WZn1RVaCQ5PJh77W+
+xY5RGyFYS/cWSrZx+V/cSmCvX73wSfg6upXBdX0kDFzE1wsAJVnHMGdMU6VnJrYTX37AyEBASI4Z
+m+2jXRW0Vq/StSRVyES3EHZ+fggtzHl9KIjsoqL9x1tUJ1gNMgEvCPqIOBr5A2XABsJXjYCEjnSp
+gvLWSxS292Ry799+hKfGYuB7JplfLhv74+1plWcm5y+UF0Lo4dLMO5RMlltt7VmXl3CpzKvOGb0H
+r8+BF4j0nOr7xBzDto5HiqMDZHNwNMd4ZaHoIrAZjycYrJsONso9QEPoz+Yk+ifbNjzgPW7WPbkZ
+yJUzN7/+7UefAnq9tdLmOKTUHc9wOAuRW1GO2VhU/j/zMjLih20+xkgi2hlQRRXFI6kX3n8x4XDh
+EMIkPlWKg0cDd1zzZxLFoWC2aNwa/MJLFUBJsoQs3r/9gpEvHt0lxUmQwYJ9z1qD85zjTxGmOt+f
+JFJzWPCZdjSGSYS3QooZ2Wx39iEVTo2Az8YGvs+CMRn3QVGS+zk4IcI+by6sz2IMmjpCRtAs+8zu
+gh/13M51RKTeRPsf7dZlmaynGTJJCCFSJgnIvgUmC9aFJ/rNLLMyjoSpke0sE2FGdixp5Bg9nZBd
+xZYm3wwq9X4CJM0ppFttJXDry+4dqBEhtpjFSKUBH1r8jSgJkC9dzwkYZaehQiDJ4q+leTB97fys
+JJSmHogMDgdz7a9NxIVUwwAL3pK2A5JAuQby2yTQN2k1ZeLaEmbSbXqb3NpVTbUcep886Kgk2s2F
+dWLayQ59SftI8h6UcTX3yfuZXjZCSG7z2zi6Tsj0U1YZKFxyv7dz6HdXBu0ZCYTBKr+4SQ7/o2Bb
+QVQtcNIrs5xRf7jhWN8sfo0EKS/6aQeFFu+UwRLg4WAEpZY6RQYCsh+9kGohvPpUIvfZTp0hEZEl
+TVduB1eOV+bokbEqOCLA7iAg6WHkEDZC1JAdmd1BWdvEGU60MYRdNN9M0H0Qla2xavcssPEYYQuF
+sIQ11jU3dlVPD6VQwts5MiSzy0L00G511rRNpOl0Pso5FBzwQjk+pGVsmJGNPOM6a9n6s7d3mEe6
+ypK3XenY7Zb8cQLPNO2ip4o+OuCAvIWZgdzluW/E+MlFtoasUa4ha0G8KiSdNLa+5yrV3lYp+tC7
+wJvwaCLaGPUO1m4/7XO/QaRV0OS8V76FGijrU6xYxIXDiacHxOYIyy85P6nASkqoSD3NcNVm0mcW
+b23515SfIEd0vZdEub0Yn9OGkCLEDrWF+JPwEmL5xsSH5FmhUSSvt13kjj0rTJWGDLNPAfjEfKtI
+QDK2ATGQEllli2TWLbvgoercdCDg1Oi+xC1F902aDMttAbeQRwUhSm5sLTwYZ2EcPlXhgN/WUZ6L
+LGqho4vS1+iugxmd6DZdiIpCdqq7DulaRuLp0M/DE9xohQPdn+R3ZG0daF1SXL8slUifGA08BgQH
+qCRyc3oGu4NsKAmG0F4Zmq59WRDpjPAhVba1Ra7UD181/Bv9E7Og00ae72m6fX1jVrtYOLrdxiSv
+lwdVD5b5XLnx/HVo+zohmL5NW7i3iVE8tmDWikPtLcPKWR447sAFLrARWHHTH7RAOPnRQvhqbEkQ
+isurriI98kJ5beZcK7I5iY1Z5t4FUokr+DkxdXaf1gKVLnICdKmw6ojdkr0ZfNL4/K2dqyoDEYpv
+lsiVqbaZG7IDxJ0jZs+/G/PaeuraFBUJjOomvYg96IXbXk52/y5AGFU+J3jUi52dk6JxP9ZEt2+l
+jru/x2msnK2ZLyWnFyOQzo+OUQTLpvTi+cuIPICULZnOaz43et1NjrSZ0EbXGr7O/HN9F89UdO7i
+tqT1SpaEM8LK8OKlJcbA86v8vfQRdKMj0m55mTMDkj/IPAUxqS6zd9O4TNjvK3ac77Tnl+Mhm1xX
+R7nszE/GrFS8Cakb0z5ngHcwOJd4PNCQpb9e1iMCMaPojLvRI59jh3FYZXR6gcXcggBE8CpzIsCi
+xQQCve2XGTwN3moRwyRqrPuubTs0SIPShxyYwxg5wkhvVNU46d5BF2lcl2nVZZ9BxeTpbQhSbOEP
+kl20s3otHNjGBZ1TPYaWvpMxLL6vUGYdZxeYmY/HtXLrJhqmXBo3Yz77P2NoZ4iKs6GVe7OARbun
+YzWJhxpg3XDtj0WJ6N3n3e9laOufLqLg/qKu4DNvydYcB15ILPLLxLTy7+ai2gwFsomsy2JiC6Iy
+rGlPk8+nTeQrRitQ08UrqL5tZ4N07il8tJ0EBoCtFge0bk+vBvizOaVbr1VmRqjw2JHPQqgoVMkq
+rGjT0/sATr2U1WcBOoG5Ie8ku5Ox6cvDNNtq3I707RF+U+WD4sgtRfHgmd/EuPqUMiLKL/t4IXnU
+iy0DvXqY/5gHMX/yE52882M7vQtNWe3tMizurJJMjku/kp2O6sHhHYlytpf90GR4+StA0+OtqNCU
+XNbunNuo+OrJo4Axz+Z+snWrIlCSkvAPr8bq29o+UgIL6mq5XWZm56gnHry57OximYF5lSHBYF7l
+zbvSAa5wW5mqQqtBQi41CziqYue743KlB1UUF2IatYEoDYfjZoiNpKRrnaG2HcuKd9MbhRMTO2jg
++u/LKSuJ92ic4CADvy15/0HKDykIbr5URKyUCNrXr6FhMdIR3yuqe5r+bXdJacN9r9NsJMMt8zWj
+0V0WGvOh2dmbweNiEaFawkZMmGGEAidSXg9zHXtbNPQSpgYQadxSdA9vUb6xz2jNDnVa4XccEixA
+8j/i3LDe+aItBYdqfh0aGgRXFt9Ff5OOU3k3DElir1nybUGQdccypiazbHesw85MNmtMvAmi1/ZT
+k5v2QxXMbDNSzAWP2kGSBJbfw0TvOBnE9SxJHBlJVzo/6X0IfF1IgjNABG0CYjtwyhQs8lATIe5P
+ZpQDgDABZ3XTg6uGstgr4K7FhqS4TESG4tjPx66mG9wBpkUlSyc/U1ekX4kxZslx+bCgL1QlbY0y
+Cfp6x9Tl5XuXqR1RE+1NeWANzh8W6OmwwkffvxNe6+fbVq20g8prwy8FnydNEmTIH4lf7zFZJGoA
+9T12+h5YspFsUiQkNwnjCuBOmyEZq4LYu9eoJm+ARRfPWmrxDY2Tl2ydTKafGb0IZTMvqK8mlGSs
+lZ7sCtDFdrmOIGOuogA1uEPCQdfcaqsPb/0pQYHPMb380reV5nmN/fAdRaLZ7WRgi91iK7+OJkH0
+AFGI/Bhi4Er1k/zP/kPdyhp1e++SVeDEA5ChcqxWYIhywdAayXeA+EgddctHg0IyHqwo70wFBMhP
+Pxke+BG0mjHkzT4Ztb+t2ETMN47lZJeyyga1bedUaxCdGWiuUEEY3rWl3z0NS+CoixaFK0j8gfl+
+I1sO2bfTIlJ2XogZSWmT1CjRNRakvHtVUndsw9KOzVjdorYzlhxYlI1AF1YlEIy8XlEQKi6iYeCh
+b1CcMZYcpaqDDbrU2cVtSjyFpoXfRnR2Oa0YAxK/Hbp8tp6LuyDiorZbPi79grbcMJW97BSoHOeC
+dlH/POBLCbd1jNBlaxg2qvUAwfECdKI3Q1LW2DCwZqj8q9Gna2oF3LFxtwTEUVBXlPy1TYiGRzS5
+Ea4ZAfMSudbi/kw0usudrgAe39oOVhf24JlpgSFIiViuLZco3kSl6CaNeUrNrbHU/O2qdhD6MEFM
+2UGw9H1ANB+SGNyz6cCFkzbOhTX3uYtXYmSX0xCBx/41VlMIegZYNNCBPv6YuoHRQetyqw/NrEq2
+nsJZjOuqTn1vi6Wqe4wHkS54WsBNRG69yqpYK5JlPw523W4nEEA3ZE+5LXCwtEVl5/fCjAKXqJ5N
+Zy3jyiUJuuAqCLPgB/s7vjgV2+zHR5P4PoMizrjpYaPdk7TYlhsAe9l7PBJ+t6HxO/wsKhW6GyMT
+KILycSDauh/mIEUonC4/8zkPr+oJauIuaCbnsRjU8m6Rpf44t147M3sZ1UWwVEkf1SP+rcivwhwN
+UEzSH3Qi375UVhJeT8SRjhsfDdNP2DFE1y5gwafII3EFPwhhP3nEqskBAV0R8cRGSO2Rfb8HWShh
+C/q3B6pZMeUVpHB2Ip7TaHSnvI9YzhBa1aJEZmpgX4OvEAz8kwZ3I7T6bJXKK43hqag75LuUURli
+Mb98RyJU6oPImbBLtB4g5WYNG4gKbc460towGQpL7nwO+rbBrsWkx99tICTf2NaSrIpZiTa4nyS6
+S52jphWJx4CGiow2ODdW/Vct5fTNHHounIRgN/Z9njEsC4MVh42kq5/0AqH33gkSr7powtREaj3O
+KGB9iQy1rjHSbQWo4JEZL/UFp4NB/+hXYZ8uQ34glUBOKooqK2Ys+0WUTEj7XY4g+4M51ZxcGsJg
+ODKIMMfICqKF3Kty4n6cBAAw5MKupJDQ6R+5uT7HxpvScTckJoI3DQLbjXK356DDvip9QEO8WOz2
+CUXZ1JnSP8zE5W8ygtKaL5tKm8llnYdcwVlGnGSsduFNX+lK3OCg4XbY54Y3YKn440OscZVlpeeL
+HVvr9Tsctaf2TrUE+zluWrj9rWX99Ptq+PZ23eGosuOimiCfD68mhC5Mt+FRTd4jom1sHVHxtYHn
+W8Hrubwwk7jl0ceQgZEqcSBzoQBPZdtv3r74S234l8rOP1dfS7kuIUW4No/qSr4bx12P9HlDbrbB
+bDgnWw5DNvvi4GPXAizpJLabfmySXckT2dZ5MB9qKFM7WydQWWav/2Q4jKEzv2utFL71u9an9ksP
+oTY736OaXlPMIL1411sxlsgqrKcdcKyfGRJ9l/FtZOamF1TYrRFnXIFgd9NXivMYsPLnt3/RUen7
+nwe1cnJwmq4KtaMfRFSHxcYpp/RdcUiGvaextLEa0AYcGr85U/k+KkW9XI2SJgOCOirgmPXx/HL7
+rXZrXVgQwOfcC765GXgxAj8rjchy8qZvcdHYZ0q3p4ahQOtCcc9fhWhHpdQ6joemGAI2mF1t3/vg
+mDcytoJdMmIBmJUZHto6lQDu/TPCk98vTEHRwb7LCOT6x6q32Te8UrSwf2RNKhXl1PndjKboekKe
+vu+nboT33XWPBCom+7df6VFJl4f8+spHrzQgXto1a5qAvZqbdNuAjw9vmQimO0D5ACZ1vLDYdpaX
+tR8qt7fVpUoHtMZv/4qjNsM/vwKFIyRiMjwxU79+1WTcNGy4+QJL1tA1NsK+W+X3l29f5fcBxb0C
+QWYw+YjCzKPXy6UzJ+z4nhxtjVeexSoeVNZV0Gn9Xji2ODOafn+0NDcZRqh9BT1z56huywTshZ3D
+TS382y+GXDPFik4eRKFJJTNA2mCgZM3yRgnYU/5pYuD6ZgVzGtAj22diPbrbwKVqVBl8Pv3I8XWc
+CHGXDhMVrsmLP3+u7KWJCV6VYig8Xr+9Niz6fspo5cZouC/LPLFAmKwu20AYnJ/7Qojb/+KK4BVN
+SFKru/7o0VqQFDtOuPWmTQ39PZ4NA+x/jrbcw3N538dzcEZxcWqAoiShqbOKd/3j5pFGIINfIGEq
+7iXLeri0A65CMaj6zPd48kKo7aBRui5v7ai7SKIrmYuKZ7ngjmHzNrJhnqbuzFVOfQl0ay1EhIjC
+rGNIjxbBuBQpVxkladAACMPlAkM8WeVj19wPuB3PNE9+XzkAiyHEQU7I9oEO8esh4jcUUOdgHSKW
+Ch90vXQOyZ6JMHayrOBVvT08jlo1L9MJ4X6rBcAVLnPq66s1oSwlQiqGPhTYrxmGKEpkBceihXSi
+oWZ/xB5NfXz7oifmcFYrC7AZE7hDg/j1RZc4WByvaepNkKXpnlccA2qe4w1BtHvCcgKsM457cJ0Z
+PuHbVz7xNvHD0KtBysHcdsxcpzLapEHHlz7EMvhsWwVoy05a6qJfqJwlBLnv3r7giUG6zmgo1Wg7
+8krXH/TLyjzocPTclOpn5RgoRDRAdWk45v7tq5x4i8IGIOXTdw6QXx9tCsM5TlbbxirUKKyJ7TL5
+RwcHtiee8HGOvxcWZu9Nask8PHN/J6/MOuRarEd0co82hHGQz5R4kYg0hTKfB4Cc+ASLOLubEQZ9
+Y2XB74hfW8VnJtITXwmXM9nx0Orjjo8W454OhRgl162Kdroaahxj/mQYDySeyzMT2olbRGTlIOdi
+MoP5d7Q6dKVpL5oArU1Di4zIMMM5TB7Q6E2WO/ZD22T9c2GF57Q3J27wpTOOmhIduL2mgf86cIir
+l2Go+EYy3t3W7DGXk8oVH7BYLmc+ihNjNCSDO0RjhAjQOVYu5P1Y9XLhBmOy91ZY/bTVHVF6b4/R
+36+y6k1MuqYYzZGFHI0UU1GYyzpUcXBR5V2hi3on0lyd2R6euAqbI4v/MXkiIDiaPSX0B8rJYb1x
+RZ9tWqv2YLWm58BVJ67C2YfOOis4rhXv6OVQGVQThxyQqzOdlLs+B7aybXoDgsMfPzTmZYtePjpX
+RsLRh+0olzgpDwXNok0MTavZrEmnL29f5PdJkRR2VptgjbdlRTi6G9w0gGhpd1Ec9Ior5s5s3tFJ
+4O4A4ti7Asrn/PntS554gAi9KMwhv2LSeEGg/TItZrWPBqlkL+04nJX7NGj37TxN27evcuLGSIFm
+50PUm+u7x1fRaPITjv/oS0LC6poyFTdI6QZyyyhxtlNyTpp4+nocS/wXI8DxuqZsUwoCOWqyEA16
+oUbZJwLtE07AXW7mzYOceuf727d48kGuom4WGRQPv5UDKgJBnVWZOKd1tsWAk2zLZlzOzPInrhLg
+SyT8BI16gN7z9WRE6ZWy9cT6Ikszvg8moqiGvJjPeHnWcfb6EI8gw2MlwUcUcvw4miFiPx0TXDZQ
+7xD679NyGiInV/o9/ibINjoQ+DqTqdti1KwObz/GE2+O3RZScojnnCmPZVUqM7OuQ65FAKSbPK9y
+j+dFhu6wLxvKeUSAQvzfv33J35cVxDm8MI4DGEbwuL1+pqm28WT7U7WJnXo5eNK2vpQGAJIbw6Zk
+cB83yrGoyK5W2rcvfOpl+u4aMc1kjyXg6HPHBcT+tRkRXaQjJmnPJQ2jbfUfb2O5PUx4eLMAf7HQ
+v769pp2EDANJOb8M6gP9SjQRSAEFn0JZVt6ZAXpq6KxLM9IunigC89dXkyxqBMogBYG3nh1y3127
+OpnhAm8QOcEEyfzOo1F2oIEyP/354xQ8RrRWAcPHWxfyX6YykamO3rdHvDyIi3vSenAez5Z/ZvU8
+NUAFmHnukI+QdfT1VWjGtRj+eFWVv+J9asP44kzIVOfC7S4mwz8HwPx9+8G8zEFeUE9ajU1Hg2RZ
+BmBeEmWOV6Xeoz27qJoCP18rSmlmDmeG5DG4lkWHy1FpWLcg/P+xXC6b5iLOUwca7xIrvekR70iS
+DcOpvPCI+qx3siClz1ROT65p3bSEGSHY3YAUKNSZ33LiSa/yMY5EPGiW96P3udiJ47cLIsEZLTuR
+sodWzfvcJq1DJFW1fXvwHIvI1hsPETdiTnhZMo5FZJUuCGaxKYLnVpwAcKuqOKeTBHWHhAP8QQAq
+gSgAuW0J6b02qW19sjrOcptC2TBfqBh49XerXayJxFXDSxGLMGNd4+dH5BJzvDrzoR27Tl9+sIsz
+nL2+idTu2Ew0VWGa+Cb4hpAvutplajTf6al0DkjF64s4SFY5VjccUrgCmC2MDtBBMgvryeHnyjNf
+xelfgw0t9B2fdeN43OT+WCqTBijZqwvqLxQp2YtbxvUiEgDHO0avcWlqRaeo7OjJliTaGopcZeLV
+zT+T5v7zZH75Lc7rTzRFqp2jAV4ZbWCfsE+WsMjtcwfKU8OT8YIJlWoVk86RM6iZgQcKl6skY5dG
+bh8OP4DGFO/UYCZXauD09/YIPbFasE3z+SRZlFHLr//+l+nN9RezwayDkNWDjNEbxCyLudJnnt2J
+6YarrI5XTlq8yqOPbkJjWU6SIwgyku5znJPz1HV28hWH87ldxskb4ji30usB5R8jhFUOzYPmORWP
+VhTbuKdh1EPLObOXOXkV8IrMZlRVfhfgJiJubfxpqJuSLNjX0+TKLYc4cEtvv59TTy5gieUd4XOi
+rPH6/fScGwI8nlwI9OEeb0G+FY0SDy1stvf/zaU8irTrnh03yutLVcM0oMnhJbXT2N6RIIm+pAh6
+teq3df7hv7gYxi2Ke+zeyel7fTG3wsXjw4aBztKmeylHHEUoYLYgHKr925c69a7Y/bG24lpk83A0
++FYCkj8gEuMw4lUPhZkRPBuoc+j5Ux8uxACxFp5YYI53t3WpfFqWjLsaBa25kYSEIhnK9MeU2te+
+lXGxffu2To0MyohY0FyQq/h4Xj9BZ4SQSOIaG5OGsM18qcwPfY6egSNDeuZl/X5vFGIwC4jVghzy
+Hb++lHatsASjWW2gAfeHNO4emqC/Qn7nX5h9ps7c2ImrBYj3MQuF7FDwehxdTTok0uU9exNt+Fer
+YPQJJROcP0su93GXxme2sr+PD5/ZL/TWzQlnffvoehmuMtcyGiQloks+t9aCPMex9ePbr+vkVbCP
+8BlzjvsNbW4Yyp+g2WBfbZPiK4CS/hZASnFmxTzx7NYNlreOQsHqffSmaAQsSRsg5qrVrO4tKxYE
+LNV5d0VAtP/J7uLy5x/fFkMQuwqu2ZcG2uuX5fhljxqV0wYmfM4Blf13Rr76Hx/fOGpAqlondBqu
+x2US25AxFCnFyZFgb2yXMSC/GpVO1OPlHjcm7+zMc/z9bTGvo7EPOa6ybz1eFjuYUd6s6PfNZSdv
+xJLH70ypHf3Hs7sgiFRgERfM7hy9Xz+9oDIsFYTkC6XOSDpVUf1YWuC70H7+zbj+j673327IR24l
++Jw4fdvr6fv1lRLkvoY0u3ZjdXP2uWqMdleM6bnK/+8bfS7DsZf9BCmqeH+OLiOAWnSBAD8C/NIh
+RrsOcudaz7pw3inZliv3KzSKndl57XTIUcWF93Hsokysre5sN+7UPa9TCAd/ZhM6f6/vmbgnNwPk
+1W7mvlQNoD4nvXEzr/rTvQBLC65RBiYTpI+T8vVlzJlWprtWCxuhg23o6B+1YyYXL9/Z/2GFfsUK
+scHnHf1nRvlj1vzrAFno7x//+rv5123Tjz9+BZbDAln//L8BQ47zF10ZpBnEDPApc3r4f8ByJ/iL
+ed4kAe/f/4Zd9v8ChvhTHAwDcA281fWgyN/4vwF5/l8hhUaGNh1zqs9wBf8EMLR+C6/qYdTKOX8j
+v8f1Sy376OPvs3roCfH8glAzArD3QEhqZYp9g7ga2gP7V/DRncrPTDm/1aXWq/KcaAhgrmYD8Xq0
+GtLrIAb6XyYJYzW4qdTObuKI+N7tsjz/8nLu/7mVXxFGtKiObhFbKN1Oyn48aJ7asT2fU6pXAFzg
+iNig9Io6cw3RFbWVQ+sMgRuD+fIOqMmrbmfKlADfgUZWFhFDC1O5K5I0vAt7Wj6RPw7Zw1jYxgf8
+NFCJlwRXyCYfpvhTy/7HiozaS9EAKackNmRCEB/5BNbn26mHlXrgLA3qWRBvN+48g507+7M5/jSK
+GN1O0WfhZV6O0tlYia4gFzdKXga16T87DaQe2HV9l14Eid38bJoElpzuex18XCUpXWS3+PRoR2TD
+g+8kPTZYtJr5JnbxVLiNabW0yLvJ2HhWAsvbNUFzbFURlmiHA/L1EJRIUsb70nc/1/EwI17qPHM3
+oZTdBm4V+FsDguytYdfA0u2AVR2HbYLRxSd5FMZwZUGdc41A6A2y6y65xvYgrA04XBc7nuHO3hWT
+r3dtApwjn3AIcKyEKrFvMwov2abJnVtTtgDXrWp5dNvkeUiMtGONha6Iurl2SEf1QQOT/Gf4CLmZ
+14MNGucYaF6ME4Rs9cEpt/G0zHTPR8ubduw6kn6LxHvd95pTPxyAV2VmZEnleFFjWXIEtlIZB1MZ
+jXFH+1T8PWW6SA61OY9yL2tKKmgRgzK5dlx8JpdOJxo4nySrPTcyyH8A8JuQgnt560PXJ6GU11+F
+DQe9WqQbZEvqXRgOfbMtpRFejq2X9VvwnqjpbWrpxd2IjB51oTeYEgRjXZF7lda5yaNf8uYAGLLt
+tqLz6jUJOSdReVncjAPKNCEUeOgUmnlCEVX6XdchNaR8NNt4DxClAAiPiJlHOIfFBQJMiCUhQ+xz
+p1z+Rjvz2aiH8whENkFGuZkQatw2yZw/1WWrw0PmaBvyQLDwzFVg6iglHPlnNa/C7sCea/9qkAlR
+fewgJ7mTInYuXWiiFup3c0gPxGaOTynYUW8vOiVxYtRoJnhqqMWS2cZK4hO9C0Bswp00JstoILdO
+h/vO0u1X9tuq39qlj4h7SYXxFVfa+MjpNvnYEFD2PfQqeTO6CXANg4GWbZeRFlIEK0F8k54kZ9OG
+MOwjmecGt1ap05HBYnvNro5VxX8ehosTWTh5cHGVFf0a0NU28c5DBeLMGnr9sIzF+FgmGNM2BQ6q
+HrlH8bFT3qowH43vQjTGuEWiNH1X2SS+D21l3xMDjMq7hfQP6tHMZzhX3foe+pLCQt556fpbFOWN
+BBCP3PSwwr1dgkiHnJZUuM4lbhW2BrnhjjABQjU9N2Sj3su8yMc95Gj7vssUIoIgk8CmYweOz9b2
+5fhD9oO6XzSNyj266PCHCBvZQcN1i/dw14NpowiY+ABlvKdB3pjG5ymnlb13QKf5Oxx2PJ4U00W5
+KUFsfIAuinu2sXLTjyaiib3Ioc8kVsZl6EXKc+afmZfFz8uYje+88aVesyzU4nTiOfdm2ehPdT5V
+n5bSxOaV4Haaok6Q2Be59hzg0JKVlR5GivbfCHFMUeunrr7uYpeKZ9YQqLcbnDzrL9GeKYrOeqAp
+khqEFFxPgdstUSZE8c956P82NL9uaNgIsyT+5w3Nu6/k/B76ZhiOSIkvf+7fGxnP/Itck7WHSwtw
+1UJRefw3KdG3/qJRTaWLwpC5bnF+2ciIv1Z937pZgWBII8j+//sYK/jLpBcWhhREfEpyrvUn+xj/
+5Zjy606GFjnSIrAMXAmUCTkur4qIzpT0pIw2QTSqYYQWnfVVgnnZtqatn9vDQ2COnffkvTBPjRf+
+qS+pSF4GJKoQ67t08iGFWWFF/Qs41SEEZUO/kpVt8F3sdyWnohkATUyWvN1XnM8TexqZQeCyVmsl
+O7IK9x1x1WPxIAHjtnS8JAS41ADMv5EU4JcvVcYW4k5ibPmbYPK62RZxqFgAVdjdui9EWzZpPVn2
+7fRULWpUlAMaeS0R8CMwJzujuc0niMcHPMkB6FcZ2z+LRSiSWh2zfrT6wqoOVhbXmo2GAfT+JVhV
+1iVK7iLJbkJNHXtXDElZB5vSos1yaWaDbWzwDUECNnBw15GtTT+/0YJ4OqwfY2UdqheUMKKpOdiX
+rurSrU1GurotW2cKt3OHDWkXV/7SRcgZq3krcQSNqIJAVUcDERkVktUX6HGAu6k70GCzUd2jXlzj
+fnvPKW7cESb7tQFs2P3eZ/kqvs840URTGFcimpx6tu9sRVpaVK8Rv1sixYfhPsFKtxzIiHHML6i+
+S++jxLlIvGyYpiGV0Hpw7wGKj/Y9pAKsjmZKFl7UDJo0Bhocw3glYpV/KMfe+irtsv4UF4K+9urL
+KDdLgwimCxL3UFQ5+GPK5c4uFRrkXhJqd0tKSvXecTSTHHnFYgm5Zfgmhbuhv5y2kexn7yug+ay7
+T2Wl70VFKbOqtHqaYgDSt2naiXnjpjXaO8PpGywrY1hld904ANsfihqktMPJFVaLDAod9bDozN2c
+DZl/q2fSqLGz+pqdSgCuiHpsucj7ZTFI99kUsmRrYmNVtbcssdj3/cp3hr0vs2oHFrn82nuUwDNS
+kUGpkSTDHs5pAmM3S3zLbWgNyBzLOGnAQuatCbLWNHdQiJsn5OxIobICUvOex4I1io9lcr+GRRfu
+Y2xOKaEPbMR/GNUyg80FSWBeyEDp1twqEjRQGLlOpnO1a2DojnAJeke0XoxDd4m7aiYgBbJwccXf
+HxCTTNrS8mnWTb+hNaUa2DW9c3DH+Vl4wxQtHHofcbbll4Qxs2AzTC+apEFYUiskYbbO+AgbtucY
++UCtQ4yH6A+5wBRAU+2uwW/hTXF+a49T+tHA0/Q5xXp04YTTtB/gcL5bzcQXREI23wlefqxV62Gi
+80kXaIL5PvRqkOPERMw7exHVl7xOQWA5ucMhHGFzet9A3vzMvakLO264IpOEs3fidpsZZnVwynKN
+AoqLK1sM+l6xm3wQbkvYcIL3Q+MlCWQxvzcqr39UGDYog2Nn2cIeYVqDGDTfUlEObgTNMjbqS/xl
+dkEeb3KiB0Y+ktn4tITs0Ta5G8hyJ7C83INiWG6MsiieQFAPn4NshtaK0r1KN3ZLN2RoscGkqjFv
+JqvzYeRbE0kLzKA4lpxWEOExhV5/m0A0eKi8Bi9o63TzjzpwG6Jc86koEHb5eNpADjTdHnBpws4r
+MyxYUqWVgO9uEpwQCCJ9EpkB3bv3vl8SONsP/ZUwC/OyGwLaaMsSDGwGGm1nO2EU85NqHHyw9CvJ
+YegIC+j3NAOci3Yc8TJrSTkuzYUxR4YRJPHVVNKvINuHrEjqdByMGBkdOM2NdCmK7zxllflNVVpo
+ndYoiX1BFKcRJUybJekWqU7BTPc/ezAvOAcxJnX7PlT93sWFWzyCYzcULUgGJ9VoPN+xx9S16UO3
+Vvuk7Tvx0ITOj8XPmPPqYGumBWR42VW3Wq+sjItUtUzvkcC91ReXmdMMcDA01VSjfM6L8O9J5Ar3
+6tD6WNILu2CdCSer3OmsmCGmG6oY9k08yjBKcpitB2W27GMNmNaXi8G+ikSn2jhks9wr0VwuMExI
+YVg8K0K00N56c9gM20bn3bzv7dj9ApkLsIGHGBghDKYtGouquTTcQV8kEjI8Yoc+YzqahDZ2jTvZ
+POU6WOOptO7uYM5cU4XX6XXpzWWwF+YM/TxY0R0X7YAlb2dhbb6F0JIPl71ZlMG7Jenb3WJopngt
+Jzv45MxrhkIz4khc4hjr7aAkHjE3ICghKRALI7sgnsHlv6KtJkgBpJT8kOdFvTU1j/jCWZ3y2bNM
+myddp+uSVyzed7yG8/Vkq8Q69ISfxFjKPzcQkvFXLgYDgySVrvq8NCv7nunc9HY4hRnuix4xlHUk
+T7zDPJevCQmz4R9M5od8z2hya1zudvq4tC6V2Rzh+yZ3/ENdFvqqLDU+0EB8SVVOCMOiv9ZL86iS
+9NFy9XJlyuEZmGOE7uE2V87fpWlO/8PemSTXjW1Zdiph2Ycb6sIsIhsAXkVSFGtJ7MAoiUJdXJQX
+mE0OIEcRE8uF9/3HFx9pZCra0XFzmTsForo495y99wrmznP92bL2HYu57w7WhSBD3AqwmWxKezhX
+SgJ1SJXN633VSGmzNLq8AMhefGnVUFR0zRDWIZGmM2xmO7Yvm9ZNVhGHY/dYwhdl7DZxJ8AU5Jhx
+v9sTqSN7jRSR73Ux6qyVRX03a25SX9jRnNkH2VV8ctdJDDrNVm86EPRkGpFE0pJy0ZpGdaPHg1TO
+6LAOyQZvh50HY55194tIBf67tK3EnS5yeY8LSfIN74UndlJp551BdWATbeLYySX7pGretbM5+ojf
++auzjjTgDmbUuFHLiSNWver8KAbZ3TcmjDJMDJr6jDfWvtFJFcqCVtRJkGbjVZTqRJktMmB3O5Iv
+MofeqItbrmpyxvKfbUZjCmPkbYKPYvqVVajaRkLzQnhBzrcmUfcOWRMk4JA7LX1MJPp13CeRDOGn
+5FhfkvsFFnG1URf2JTYm59V1mV05aaZbh2Fxi709ekNQKiRrVBJEcT09QK2haIiLpMEGEbVWdp/b
+NdwuBztbb8+q+1CPDaRxnl1M1XkLFQdXNV5HbN6DVWS0E6KFO3SWyMguEVrQy0jFZlRGvasp3sqY
+Um+qSecA6JRn2mFQWmJatBzymF1qtbtFszglj3btjp/KImvdx1rtky9aPA4uv6qaQQMWOaSLWNrT
+nUGoUO6rtZ6eK6TWAXTJ9Ol5qiL8n4oYEY/EnvLgKLy8Rj0t5DE6fBOFTz8m+qz0BpbGjhJiZ7QL
+6+3RQrpOp2HMGCsSplIWrJSuqrnTXUtHCfl/N5kEc0Q92do7bpn2veucZiY1ZSmhvlstVvymL6Rx
+wGI+3pR1mdbbJGkbNahoxCyBTcBEekkkI5/aZqT7hjdsVj91nZcaB+Gki/29VVX9s0Cf+Yyn2tz0
+kHD8rDZ7e7dorVjOmiRP7kejV3aNUJZnw+3mGwsFToBBHzzjrPJ5YAvbVwYRArgVNozhi3MLkMlV
+UxjeeQ8SLN9YTTRrUC86cYaFNFd3q3JY/0zE/7QCCw1F+8wZxKM/LnVKZo7ddkFZzkm8I0S2Hc6l
+SMDelqpuBHSTbsVk8crNDTQqFq7yfrR7firrI+vCcSZydlQD4scEzuDAjNxr+D4IFigLcEEZQI7T
+7xPpip1dVEp1VqZD8dkaFWM+RJ0n6a822VNP5eXsWstsrB2CmUnu9H7eLvAVhkl7bswE3/a4mH6X
+Tft8WLaZEI68VNvVDz8uovH2BNIMjwlZlMshIW0bf1HabM3aFs2WnKRW8aG9TOpe5yd9GpLDRe3Z
+8UUc6Sv7J7Hy9mCJvI4D2E8enBHXaUCWW9Yhq4fqrCvbNWRKmA91j183TNa4qh+am+r2ruVDy2qI
+di1oZn12eH3qQQ9zyu78EvXaUu+JbvESGCjCin2nxb4fajw0dpC73jIh5cf0PoZuItDwqWQ0GptJ
+y20N0W7hboA8TctelCrmaz0ipyGg/m+qr7NtWju9MgHIK0nxo8Gy7pMN9YuJGikPo7vt7MW8cS26
+OFh9IwPAoXBu6XJH+Y2+AF/yTWnvFeahRdAbUfqJv1Wck8Mo912VTls4J91PB3dFYJLtwyeHPvA/
+PFr/0+r4vdVhoWJ/r9Vx9dT+5/95Ma35x0/83eQw7b8YtDKWQPKkMzIw6GT8Ey/r/rVKk5iUGKpt
+r+K0/5rW6MxxEC+xnJo4Jtl30xr557DG+8slXpluHcolvB3IPv73v78Yl3Ynf/59lLGOCn/rcFBw
+HqWuBLDrNp4U52SuPuINjwlK5CHUlTGcezJj8DD1m9+uyBsDk5Pp/T+OYtDsQQZKLPSp/bqOuoZ8
+k7LzcX0Dpx0UNoeVLB6ZHIiQXEjlA/Pg67NC9MDVY/Fnx4+l72XfptAWpNKSycjAu02G3SSRZY+a
+//5ZvXUUABYUaIyGuU0nuiLofGnWqngFMzPRv6DELmnJyyV8/yivrx3TOo+R/Tq7MxHrvjyXFh8P
+AyQIYjI3EwfilCQ2JW8tC/aAN5MppIkpuXv/mOtdf/lUoJZatRYqwaSkN/D0/S6e8ypjLRjnFh13
+pZ+piiB/rcszpALMbf74UIyW2XTzaqzOlJOxnd7QJi+HnEMVY+OPXrVsG9I8gi4riw/m2W9cSRuS
+M2gFLuNqQn55VlZjVy7zlNYf0y47EDNn720r6y+wfXqfJyLo9u+f2hvPx4vjnVzFGXplbY8cr620
+pdmXWtQom2xkHPr+cd64W+QBo2m19BVUfarQipi3gdK0BJJ1kYwB8ItsDvt0WB7J6xEfHOyti3j0
+zsNQUPHcnDz0niC3u8sY8jB5yUNmVDr1EsMimofM7uiqB/+NkyOJlHYwRAyWyZc3baSgI7wMgqtW
+DKZP2hrbi16Ho4om7c/fZ5sBOKmnNl5LZx25//7Uj2aqgL3QOFQChsJsI2ubdn38wQN/MqdmLeQs
+fjvKqxXXadpO44QsMG1J4sQ7N5/FAzoa82Iyc/HQusPXP7+Gvx9yvae/aWE1xbJyRZIsMbdqEfYM
+wy67bCEIkvSYu/cPtV6jk5UDwQhdIlQpa5zxyevceU3SLkpCc41E/qu8hluquIRw/zeOwsPOy0yV
+hB7n5QlFVmTCQHQEnTiCNg1Z29t0rO3d+0d561EHxMqHef3aoql4eRTSfNM2BSa4AtQMO3CJbD8r
+7DL6VTZdcuexXvUfvFxvvclcOpZDwosxtZ28XBmFYJva6It6vFo7Rmrf8CZ+1wUpV++f2lu3ycFf
+hjjaXhV1J08ESjRyki2WjCSCUTeVnRuaQKA/eKFOZe486zh7V28msxo+JKfuDyZt7BWsig6b0Rq4
+P4wpsBb4u03TMBSfasMnKXQXEauLw4VAOWQhdI4W1fwosfn1+SJPhDlE/gRCbV7Bl7fSg2U7jiNf
+Ga3qC/uaJn7SHRJjKD/yn2jrov7yBeBIFHxsrdDbHFU2v79rsovdRAMpwhQ0yQl31cetEI1xV4/t
+p9hW5FnLeHmDeUJDtkuKJw4StuVO0Gu9dxigjnxQCr1ebpD6abyRK9VBxYLz8synmfpIGaXwG9Wd
+DOaqXknAUz/FRkhykL5iXkf7pmMc9JEC/80j6yuOhgKX634iA5rHxltiwaozJdoYDnGhB5OIFDxV
+zNC8bzX44/BPn2rO9bcjnryws25I4g5XAQJtgwCgcA7Qc6g++CK9fpY4CjeYC2fjgDtdFlCkVAYV
+pfCN2WW+BQU9GE1gae+fy+vFh6NARVLp6EO6OhWtVzX8jc4hhiWPPfuG4YDYGKs7Xh2K7Huftsv2
+/eO9dbd4ZNc9h8V78soQnzNOKCAZgzedTEIOhauc65EKttUtu0/6OHt9KGOqwA/O86Pjui+fT3vA
+GSlqumhFWbXnGYzEA0l2yyciQtvzgQQU+KWZ9sHy99bFXatNuEwU8KZxsvxJuOcCFy8XN9Wsr+gc
+kJ3o3ggnFIkOYdFkR3x5//K+XtkxiRAaga2Cyhpd3MvTHIh6RJYTA22NmN/aQrQhqRGjr1Tyz8tO
+SmkqGLwiJCtgUHt5qJyIzHyyTdShE1MaNV+Greytj4rpN94CLK+rupeBNjbQ03Ul1u1O2qwfKlHe
+WkDTM7dJimqBjb9/5d64Vy8OdLJ0VzOOPsQe2JKdZiJ3kDZ0njnXqsgtsoQ+SqRYL87L5XvdVxPO
+wNOBTUk7uU+8x2mRJAvgzlHtzhJXKXd1VapQmS130zg2k9ZJUXK/nBmt//mrgN/B1EkstVci2smN
+cwD8LnnP139Reu+2EJb+mbzxISCUXhyAVKG+a5LoIwvqG0/mCrngC0EZwHOjv3xc2JPYtFon6lHQ
+uEzfPEZwWpYATmCI9P6tfONd9457ZbCHuF5Pdctu082dGTcUVEk9ntuDGA4lNIGz1PT0fR85tGcL
+0f0xbAipyKoX0SlEGGqe2mTaRNAu6zmqMdhoBAowImuEeXdm1cZwKdcsvcr1OpK9kU28f8KvXpL1
+o0sdB7ODkcmrvAVC76pGCFaUmCQ/X1crY6trzvjHeAh0KgjTccvgqHq1trTMyNtp4ZldmA/QDB7A
+sbHFZercONUHhre3zojVhfITqCQHPHk/wMwgNG960vcJqcOCMSjLI4P14qNkrVdPJVdudQtyy+gM
+IL95+VSiNG3cCQEnTyWcvq6ZzXO1GMqDkEP3wZfvrUPhCYXKitKdD+3JofpVv1KXJYcSMS6jEfpn
+s8zEwKvz/s8fB2ohXgHNom44/caK0k1SqTeYCJga40mk1mU0LDZ/fJT1M8PrxcUD0LdWqL/t9rrY
+STxYOSxhFvmbqt0lYL/Lj2xhbzwIFNRrP49j4C06WTZ4izQ3LiJco/nsBXQ+le/j4JEG//7JvHFz
+sItyLoBqiSx55VJHQZ0ocb4G9A/RFiFlF+TGmDGh9D6Iy3nzhH470klNUNWziJY5Q9Zsjw9YPYxN
+pUfNB8/aq48ZDjpakxwGXRvJbSdXTUPYVdZ4snzNRhIhMiluS2OqD15smYtfT1Lu3r9+2vo3vvig
+rUdkNoQFH2Uc4rKXT8MiiqzA4Vv7ZuxxAYWWhJCxgHsyziQI2oqSfSXHGBGQ5aFTFvovZVbOOqtq
+tokx/S2OfNF+frfdvP42JsI93DTo6U5/m0S1Es2VPDW5kzw6g6JsCLkZP+jzvXUnkRXqq3+Vzunp
+RbbFtBADY8EGTFs9DeYJu3XYEcn7h+EGNGSpEzx8ngbOI9IiTh6ZyMyJNkITgjqrkgE5ALavTsqW
+2Kh91aMdef9WvnVa5A/x8ODVQJV4sk4xsyZ1Y6wb3+mt6DwfZ3FoWEHD/8ZRaHaQKMg3Cy7my+fF
+KZzWmGNWQ7j17UU9JOVGWkb657doJWCStMGWg0bOyZVDpqjkXoqpeJ6c5LKYPDPQUiv50zYRenqG
+J/Sh1lkKTcSX5+Iuo4JEi2c/T43yUzlLRvqg4T9Yb193OdbDEBtokfiGn+/YEvhtwUWkWFtq6TBQ
+HaL0QkGXvNVEcVZPQFBsdbx0J+umISaRZ92Jzul1n9le03zwbXlVW/FLEONhMCJYg7dONxiLUAev
+j8kyX+xRhxsmk666MqWljhfWME1k8U1ekR7aEcPjBw/mG4saOwEmqjpeNEqskw8OkcsWOmwPehEg
+xzxIVELjpya9MExg9gh++OcfP6N8eFg9VistF/30TdBRqC0qq4iZIGjEp9FunXL56E14/ekBNUds
+ECFtq+v+dCtAvzmWLeJ8305S0OAu0qe5WpyDySz4g0fo9RXkUC5GRuJEHaxF66/y2xPEWmkjmOQK
+1rmFaWauYccAMkm0e68zrJ8JkbjRB+/5Wqi9/C6sCYZsffEQMp48TdNJcmHJWBiEZVWlEsLZsh7E
+MC3fxeAUoaZV+ndaIPK8SYx6X7Z69/j+LXz9uOLaZPeCB5V4QaaPL88YHiW8pAn+uUrYVFjYzk9y
+YR+tiuaUgNqBru6jivL18rkekQ0rkzQ6rKd7/m5Ks1TXBBIgRWcfKYZhz6vyUczFGw8NmAlqSQow
+WjenivF2Qe9VOevMvojE1iLsHDl3pCV3GMxRJr9/EY8uwBd3kcbamhrEiJiCB1vfyWXURgL8OoNU
+drM0C2U/sFw/K4mmVMEwZ92tVCNP86WnIwqapTs3F/CZGmNHaS9SnylZLcJF8Vr8W7w/JdaITL9g
+7qeMAdUrYgcisOvx4BlLke+miFnn2eR2Vrp1jW6u9ys5ifz2LI+MMx7qOT6LpqkrDmivtDp04G4m
+KP7yxNqvg6Rh1wlvqK4Ss+iag5EjjAYCkiUr8iFpXVBWkfat4eOTB21B9ljQTSvPt3ZWUkFuw9C5
+seq8mHzH7eLuulNLrQhdfGsaGC+YUdG5O0WQAdwyl/OOwH3USHwB8p9ltbrhAC1R66haqi1n5tQf
+U91HVKiCu4mYmaVtDJ0u7w+T7Nw0NDMdwEHsSuxpdgcmLMBjztZgpqedbjS3btsN/LOs3RedlksY
+jVYMZhS2DfpjXV88pIgDNQC+ZbU6U+yCABJ9Al+9S2CT2qE3IVwLauhDzwCkjG9yKUkzHRoqudBM
+Sk1d7V79tKYzT+WO0ZjOLVxq+iDANlLbl1AWx0BJaGJsR5qCOIFGL43PBkc6FjXsBB5CnZZo2nIH
+SnhW6qLUQRG3sbslWh8uTj4ttr2x4SWUPkMH7MQ67369GcY6dVGjIZnBBofLChDFcoRSLEdAhXmE
+VeTW3I2HWCHBaiUbodouSAheUVTRiBC9bKsMPknXFYHb1RREYuViSK8aso1xxGVotTaBzkjifgzZ
+PKOLhRw9X4AL4Op01aAC3ahmIF6eW6VfUgGVo5zMHv9AVizzNj2CO9Kiip6QuDuIhet0KMPsiPlI
+JtU8y7Ko+uWIub2fVx5IAvFIQkxaMSGGVjlVUOaes8kHoYlNj4zxh9GmBHXQki0ebWtm115Xune5
+5Fp9ico0MXZzaywl8UY9srrWOoJL+OyziVt5JssRbbJETvJtOAJPxgH2yexmxVdwSNZFtZJRyiMk
+JTkCU9CxS7YAK0ZFzNp0ZdJdrUNXiwCt6LPIHvLac+awWEkshahGjH1p6RCTsrJaDMcA2wKQLLsm
+Wn0edmBJAbugfAPy0nhE4G7qZWxtdIIrCAbtOmLcdOXDyCZOflnLCo0hWU5eREeUTJvIzAlaCAY5
+vo+pzLfWSp6BFAVSK+9XIE3ZL9WOoMAquR2PyBon6/QUotqKsmFOa/xKvZJ2FWJ8FLdKLQYANMjR
+GqZZQ3dTHNE4bH70a9uKxZfUQPvsD0eMzgJvqNmIWIDXsY6oHaSEYHd4U4rPsmnU9sJYuTzVEdGT
+qgq4HiWD3IOLQ33O4bMCmlvatv2KPtiTT1TiVnmeRFkfb2VJWMmZUmLNu1AsDKo3ep4W4kLLaiu6
+EiYZXhex2jdfF1Obk4e48kT0Y+yJJ7nVBaipLXfIda6Fw9K5N6MmJxVHrSb7rE+VFqwD74kVFqod
+LefVqOsyFHlkDWdt7VlTSG44JI0I8h8VdZHbsXbgoyPbXasusb3NhZNEO3zL0XNmRJMK+BWNaKga
+bVduHdhhAK6QOjIlilPpfR+0SlMY8/PFjveRBqT6mrRu3TzDZMMPeJGZ2Zg5kSEfvAiR9BW4mtL+
+uj4IxnNqjlIFG1G3ehYTLTGp8jqnQKy+oOTMs9tqXpAv8gUw6fGbMiryhyjGalHtEZINzuiLjI8b
+oRRWG0ttL+upidAdT27W/ooGegE3i2UWxnkqi5k7P6kpK6ew8iy/ml1cPgGi0Xz6bGqxEW0nHe9Q
+oI6kRofxaHBStW4WdA/MuJX6py5qm+qcmGwk6bgvGvt6OlIxOFsWYooVHX/xyr0JxiGpqG2zvv5i
+IrrXt7ORz8tDjr8TMBpOymWj0tej0ZjE+fDJ1pxBv5XsPnTTJ2NTdy/anHi2LQmyLn4Y0yvbz1gF
+GPqOeanITeOmkR2oXDkRDGyZ7mLDkZ9VZ2pujUgjuK8xiHry67Kzf0C4pHKZIosWKtnvRR3MiAi+
+LcbSTX5sF7yqvdPOPoU8JgreQL26IMdk1EIlsd0SV7KmXGW09RXEhwNBanOqKyvdJpm+JArzwU2/
+bv02eVTEl4UissuE9qLq23WdfS2dggRKoobaZ8lPL4GG4o/uPMh6ro8ZxTl7EYHwyiTA54lGS9F+
+WjoHHhxgRazpWGZWl09iDfgyYaB/njFueYdK0dybutBjFWXrOMz+oHoz6k9yr9A9JyzSTpOP7lnk
+CvAxGNOrn2aVR4o/VZX4mc2x+TmGqtSFYxENYF/GxSIFYKrLh6TSbZiQkai/Ah4ecEQUWX1bK1Zq
++CR6AGYovLi40pxZOnyZ6qJEg7R0JMilWrQETqaXdUCWcv6M6AR5aVZgCaKkq3s7SLFu649W0XS6
+r86xuPSiClA3UtFBhpnpOFmgUhDes9klyLKeS/0WCM+EbyMpU6TGXpwXG6y33XfXwNbnj84iwXXV
+In6Uak5mIovKcm4vc/PNZONDZjxmZg9va9F+W1xNecB5RlS9vRC3g5176X+OWm/cGLqQP6cmT35E
+Ue3dwus2vhkiTs1gSmLll9FPwxVNjeJ7P7KM+5ADIBI1GBt+zMbo/fCUIkXgizHhm4mv5ns71fmZ
+WWRY8UfT7X56i6x/MPgByG3OOiGLlD3GCmVNO9BdiivOgTN6006dLecBfG6ibYoB0Gcgu5pOTJ7W
+cFeRtWMiYg6y6BvI2oPi6xEMwB24luwunWoLrWxcW9+73hribZURDRDUNP5MDGdo6XEbCHXa6VS+
+TshsK73EiGVPe4jsBA4kChFwPolvuX2BmYvRLN131Lp8r4CiDrEFwodhYDE+TioBNcHKTY1IdZ/t
+SYNKqDvcRJL/1TrIuqz5HGGK031zzusx6KNI14HWIuMKzcVJBt/2ZgzwZuZQ/djVoD95pGGfx0a9
+EInodJAvFl1No12RWwZupSXNHoXlyAlSGaw0nAJVurUsAq03MO1yPWhit9xmZsG/GiKFG1XhDHg0
+Mi1+aHOKjT0m8knnBYmmcxwG0xewiB7+Mq1oPsMxdEmMhzMJWaAb7H6LSUdlj+ctuUd4ZFfPQTLa
+Vk5Qv0beQ8LMydosQ9ncWNmgYsGyE2iiOf6cYLKVrPdL6TTd6hmwrwaFC3NAZN7QuY4ND8Wvljnf
+ZJysPUVVsZpLsag6PrastA61UciIH1fMMSycAXuOwY5r9Flb+C50S2oWWz57ymfdjiIwSMnUneFj
+wrOYTfjJFJdAJN/QAUsh19fib0ksHC00csfLN7ykdu8PHt/d0HZSqG9RVTnnHmEDkH5pLBKOqSay
+CDIEjU+9OWbTdsQQQsZ7lyxMf7wqf54tMY4+hWJ8bUjVeTIVrRAbxKXRRDhE3mEWR+ocqJWl9tss
+SVODXUDeXxrE732d9AT5er/E6m2Zsx5D65pZqtR+wP8CzbXmYbNagUlAttZDIhOH/AIjsy5at8qv
+qwjxYJCgrL9ZnJjqt1GEPJdjxC80FnGWo5zA74Bs39NDuzZjGaAf8lDPJjK9moWuP8oUloMvZT/e
+9qoRs3y7XoZZIRrVArapZt63CNAfyfaIIFKR69EE9M4B2HmuXWg+oHTWVGlMNFL00cM259oiSX9k
+mgFDeaQ4TfwKZxU7NrPj67gMEUwt7Hjxz6qKVmpb4urNtuYGeVvTrlowaiOIxZArWd6wORY/cpVt
+Et594i63c2N33d5zCgBotlsB9mqGzKBiadti3s5zxYjC7mb9BvRbzPYBuCmOrKzuDpxW/6vQDXI9
+F6LE5zrrHX/pnfpZrdTlu4vxovaR7JkyNBLH7sIma3CA0IDmbdRRNvAZl2a8AXnrXWuzadzp/cLi
+QKWRmiGySeuunV1qkD7T2hAiWnStzl3KKhzV5d7r27L4pMFHbvFhjsplk7OL9cE9poe58Nx4n882
++85sbuA2yiRCrG+4uXYWGagVsVGZ66Ph9vbVlEjn3m2E4QR631TPhC1Mt0Pde19AByYJo5puPM+S
+An7bXJnOrZ428hfmmIGPZR/Z1yO1+6d5kh6NKJ3XddAVmQQqe6F7UEqo03KGAdcyw5MbpFKpMRt1
+y80IObvzY3B2X9Da9kbg6fl4S5Tk9KiX3gT/mKrl4C5R657xBZxdHGu5DjSQTWO965Sazxa2C5Yi
+wiU6OE1rxEpAMnN9ly15JvZxptCX7hskqNhuvQzGaZqObthoQ/Q1mqW4iU2AsWixx2oOZ4S5JLYu
+ehQFrt1WsBAIBS+CtZff4vJb2cgYDeW2aBPvUfcwYPplMhv9Xiapd4EMrEm+F3C77O1iNmuTAND0
+DSJlVEZ5h+vap1uHra7t1XbauIL+8wZ5jWcNDPOZfHhz4DLlHxdiS0i1UEuEOznl+EFETvSTcjib
+PinLMLR7mY9RuzMU2xK31NOeypCzz+wtKlFT3xSRipR9KcizLwHIz1+GaSA0I/bQ0ASzmtD6lJ3R
+Z4C0NHU8sB1vitCEKX+HVxpnKA+bQWZQROhiANiHzVZxtJSq+WovXY5W0/xoO6Xtb8UX1dGUCji3
+ss8xIPEpRRVrDRdk5+BsBQcEK84kYjDeWbUivgwKJFNqBaKTGIFjl6XIzu9AbJm6nx49tZXTUhoS
+s1U+2HJ0klBk3Yzli/Wb73aUUyHPWLMg0yJ6fJwMvc0DJ0H3xVtQuQ828S9FuCIQCXIp8O+de8vQ
+LNj8TQgswp0LfTtkzigCyyujn+VU9FlQmJNjBYwwosNyNDN7npW159rR6gzMJbMwtTLWCUjqTL52
++rD63VMGBXxb+JS7YVwVmV6APe20xXBB2jSYgbBhK/Uy5d09JrSsOhw7X//jPHnhPEFj9ltDMHzq
+n/7+z5dP5fN//C+cJ0//+X+/P700nxx/6J9RYeZfzKcYgBiYLmxGYrQr/zafEBXmoHCx17Y9LSg8
+u/9lPlGwrAB6IriLoEqUKIzR/uU+cf8yVBQqq4yeYQMCOO9P7CeglV72oVF2rIljMIrQhBBCdqoJ
+ySOeuaoQ5MWIpH1o8FE/ttoQ35nkIzlEQvVKf9D49j/UGK5+xgU56KWeUVwbTdSfx42sfzlNFZ8t
+TZ90WzVztJlPI6kVvup0vEBRFGE7m5uFwMgccUsRjDiEaZQM+ZWrYPsKE+K6JduYNv0uq5ru4zSA
+UfZVcpbAIUbkR4XqHIlv6NPibx3bOHadTrGa52n2EQ5vRATkIFJqpzAy8uJyqnWolBW5COx/Ccop
++PQp9O3cuuPNUbOEBuQoneo+b6xhpAnjCo+FfbHuXaQbHXhY1VJ9YxzUG2OZXc0vsItdpLzayeXM
+FDIPHZnqjyqvutgz9aVMSUyluJqLdMJVHUWVDRNX6nsB5bggPiNlKtRWwJKYRPXiVoV3t4QKvusf
+nlt6hBA14lYBxCjDqFzIL597rbvsTbc1bxnBmMsO81pOP3JyI4K+FcZbkN5z+2CvuaW6Wk/fSl0Q
+a7RUwv5E3mP6xAYdQZGhRvMYmsikk7Omq837Gq0AsAcn57NoExE34anNB2CyoM4VJkWupE9prIFg
+mdeUl2pfOTRK44jqpVrUDTaiWfO7NVEstYZE4XID5UaAsIaOoWgmgMw+hpFFx2Ay8GTsjEjT1O7q
+Y3SZc4wxm3qjvR6M0lX9YpG6WDlmg/vQHAPQvDULrTnGomUt0SGBt6alMXjrh4Mek6FGgBNxaqi0
+vYOcNRkH45q3Zh+j10ZFy/sNeeEYj7xxTpwdAQJEtRGwlvHYFRGJG9Exzq0+Rrula8rbfAx8G4/h
+b2xYlXtnTYSj/0E43Nymivs57iShce0xQK7ry84JVGzAYjPnirkb1rS5apapssELTxQBewmpUF+T
+a4T0l4gjLYY9eI4hnj5jc4xB6o+RSEIzakaSrcvGul9Tk5xjgBKZac53DI1LAshqcYzQbkaY3WZc
+EL2kHmOYiGUov2hrNpNcU5oQrZNCYh/Dm8au6z+x4Yy+Om41/4LdRswTEVyls/GiiG8I0jJKsewY
+C2V5fXfPTSIsSjZT2gNEm0eb3roomm3cp/GjUmBA9mli5/fFgvPJX5y8uKUGGkVo6ZH3TPtZ17fj
+mlkV9VHPn9cgKy9dQ61sqoHMV9esK4I/kn7brAlYRpnKrxUvrsU+RWUA5SFNNw5UH1OPOBPF6Qac
+B5FaFhQBoD+mE4NmXFO3lC6nlpiOYVw9HQudcUnl9kRoOdrVdEzuqhL5wyjbqA9jm2QvQRj0l7JO
+H1RJowsl7xoBRhJ5d6N35IJpNAERKeiZZu3yY3QYDaARyc4xUqz12OiHS7tGjenH2LH0GEHWGnK+
+lt7o/OoMlR0bCW/O92rMRR0sdd7Axz6GmRVGCd4Vj5oLbsDqYxzjQ1kafj+q/fk8lVjToyoydD+b
+LAzYuk097VFUi7DiXjwq8ZLPQZlV9ZnI2BSFKa12M5ixOtehNjLwoUlEM0XS7blqDRNZomEV431s
+SrIHesZAbDxk5NHbpiWb79n+f1KjtPhWLJ52mcwT4WgsOezki5pbCCEFNaCPgq69qnLiBbgtVA++
+WvNGVNNML7iQgiS7GaY1jHdQSte2Yhq/zAE/rJ8qywxffSzt6ziNhiKsVfj0CNyN/FmnP/BTsWMm
+xXVh9DzQmu40gSUz+wHjfOps2bU3STgTksbwesxAuPE1XXBEGAxIQ8n09NBJVZo+gW8N6NW5c8SZ
+4ojo3Cg6tEhmluNuoG2RSSIVKxJdQGRjU5e5Ib5KU5xHEmrlpyEGZbWJR9L2abELMjxitzbnoEOl
+tybIRPPd1OiOOJixNly2CeMmHlHN+DKKkpaTgbqnOktUx95mdNisbRHn1n1tCK09xOpAy80zIrlX
+REzxxyZYfxZsAi75rtjcBGWOh30immlvqfQCdzmohsxnkESggFFY5S2Zgc5zOyvRzBBriu49XEIk
+IQwpiCMu/dBu+mqIu61VJGLP4+O227FRM8vPZpV2XEsr5nJOMkPfjMUaYOFxW6+npaeBIaUsaTWI
+6a5nCX3QF0Pw7mRa/6214/RMDJKgUFu6CX30eazvvbFBLQkLF3xmnrdsGPvG1j7FxBclm04d0ifH
+XKL7hnEccod2SH8YqLnpi2eJeRvlJtct7cbxSY9n5adwJpRAf159fm6eq9u+fX7uPz01/74Wrj/q
+hgWZTOij/fZff/o8Prf90D7/G/9j92+kPP58wl1fnf7Mi78CC+/ftfBa9b34w6YiC2++HrgZN8/d
+UPzjcPFzvf6f/7//8e868m5uqCOffhKME2Jla9Mf/e/FpGFAEnmvAr2rfzzx61TdGz/1T/+z9Rf5
+YjpCIsL+13+jzvyn/1n9CzW8TlAbedQkYLiM7P+ZVmv9RSVDNDbKB+rMVSTwrxJUM/5CAIVRgdkp
+htE1tv3E8fyeA5p681QagOpaW5VioNf466xT+UUsDbrnpJcHtTVXZ7XhAqLP5TRt6ZwSwBXHy0Ga
+i94iDnVzhRhCJb5Hvm19nsahByLfmhvHUsSuIbEkpBitmPEmzyBFFiYFuntGXBgLoa0I+1yF4o3t
+ADblpmQYvlXTafyqIsP7XLelCDWinvh+jsqP1NOmJwYq27qxrmZnVA84bf4fdeexJCm2pesn4hha
+TN3BdbiHVhMsMiJzo9UGNvD0/ZF17No9PWizHvassqoywgVs1vplfW6FEbxMpXgnAX36dGjReWaU
+jB9to6+vhKcYH7Ywh498brr7wtfCUsQ/Q6BVF7Mtu5c+S3witcr6h576kaohUPQd/VjtLZCeDPvG
+sc4ZvARPzRnqeSSKtmNlDb3MGwTmy8G4FVBKBzW4+b015U88Noxu29tLTd7AILmrY/caN/GyEc0M
+mUkM2kNSfXoGp3FvjQCspk9gSg1I2+RwMxAVRCZlE49bPX0jW4MmJEuJl5ncAzJHdfBTCLYTkY9H
+t5hvdBaKcIFg2ivd6fdBMue7aSrWGlro8FB5GWDqRGVAVOeetea4jMcsHuqomMZxa1MZ6m0bAmYZ
+140W2Dr2Ii9O9TKyLEKmIg+YuPjOWx9JuADGOhAT2wVHbZqz2wISPq9Acaz5p0y62mufK3WWSV7e
+RohGlvY8OJD4pIVOy8cTzuNc7Rrfr3Z1Zec73cgbb79QD9zxb8vhqx764pElTOibynYjVNzZwadm
+SssnRjk1XPLs2+h+QZMQ/7PsdDufD0gMPmwl3xYM7psyfrWXdJ/H1b6NXdjT37Wd/AlSks5UyhZh
+/NZF+TJkkFQCer1wrWMaVEfBnuJa2l2ZryWb03WuxWOfl2c/js9tmRxmqI4rQKEVmrUE32GYbE8p
+NTS71ihl6NhE4M5PQ5qagAaz9jAwfK+jWVPwdJZp9ZwlPVkynWFHY+bfmZpXRdIg0c6vDl6cR2kW
+HPtOj3wduYNJJ6U5fkBm71Xr78zx1xDbD5pDrpD7aCdv8fxpTDFxHvEYM3r1W2vqrZ2b9uK6GB45
+XaQoVXm4lPVOFeDSqdUB940P5ESBkwbTDjprP1iQjAOAxJy+AcwfnLyJer+9ui4TQOfKTbP+DPqp
+N0UPKWlCk/xZ4CMSrwkTj5STZty3Q23sdUsfwzbIXjD0ZcSuiWdYjstQzN1Wt9vmT0FQn+5r9zY0
+RuEEL33qvyQ6qaQArnqUas3BoHXIbn6nibOmnjhh6UKVt2DnJMoTN6MUoXg5yw6Bzw4LV71XVsE+
+ouufVR0Udy5pXqHN1EKO8ZsRpJGlqm1Rage2su0YBHDGLk76xfwzUxW4T/BR2s5Dr4sf7to38FAE
+vttWBLfSvlty67ftyEehi5eJcFhWHQlxVGk3mQPFp0P1ZRRavh0ENUVqyh4JtjHoZipusW7exT6c
+pg5xQBqNfx8b6feU1SlBNOreqoaHyXE+hql9W4PRsKVrlyUrnghIOPvk70RmJR/0vviA6eD6zO/q
+FQozqyO0XzRQPbQVdTZvxt74JZT8Vl3/OqCR2coei1FZaL94nnyBsp6NwTwg63ltk/bFT+tlM4rs
+M64IElJIPXtnRpIo/YfBn/aBoe1UOtxIqd0y37f39YRcok2ynYKRlfW3X3N55tzfi9TPbn+fWEtY
+1Z8TEWw0cl7YWLa59m5NBNp0RNoJf/ki4D9UbrYPhmljYSjlAh1gNI102zbXJDAOC+iCdIfPUZXz
+Vw9dZpYoXvKXJj7rHIO6PvyZ3f4P29amRGqCOIVEHzDhP1PbPdD5RHI6l8HS9ee4+JGcC8TXfsYt
+OIUVEJmm3fM84ppNzhqCbieGDqI/CjQBCEMT2tbo23LrNNZDG8vvlvazXeBWb5Qg3ePdoDS4fvHd
+aYtc5xehUFEdGDnUVwvmSqF5O6udJdW4Lfpxuzjjn8H0b9miv86GuLY6PX9QTuQrVqga0E01Geln
+I+IYXSX5MZOtCzMxqy3Ss1BpZIUioNa3S+YAghfwk4zZLwJBByjtgW4N5JVG/+NW8fOkE1oDsXIu
+sxy+JCBYbmzJhwKcJGJJA/JJ2dM6B0W3kZfQ/alL1M3q0k+Xo1PdZZ21ddRwJ7LmB5Gz4l9nl6m1
++ZAJvCrhbTZBivEPXTDaQ9Vf07l+Tcvm2NtxZKA6YUfWNa69lETWkitBrzHHBgnXuvk2lbJ/08lO
++jM18wx9KBSUlTwonQV4JjhtrzfQwC1H/ZassiuHzLeRFrc8NrQH0pYjmZAu4EmbnrMi2Lp4gy3p
+3HiUryFoVHvapHbJ4qNdfpyujGJyOsfhydaTc03DQ9y1T35qsUEY31miV7tqMAZSxhpW/O+saTsu
+xBR2C2pIs8IuJs/CartTW072TSG7OCj5CcTWzg7ifzKGSiLXux51myIBqiNDzlEM4EF7j0fr2BnF
+wVwE6VjxNnc/Eq866m6ycywSt0jDLkbiT31m/+qkTHELaoO4tjzMuH4L7V3CSCTJjfAlag23kiJT
+tyfE05UnMxbIV3Kyq/n+ApPJQQ+RI/n6fVpVZJgV+ySIt9aYXPXqu7LbD6xyG8iZrZrEZXCLUCX2
+W030m25VYU02pczVp7sU24nJgpT7EXVYfY1nzAvSOxhmD/RtAcawwXlJNFvWmXR4FKA0vKFi7Bvq
+OtHJ1UP5nhfWcZBzAxJ316womT9+yiwABtfCwlgr7i2QQnNXGTHgu7g4zq+stu518IlWrXIYb1/X
+xkPCpWJZf4BlOFjEqbHqLfjTyKbsLyIqPfFZEleZ6W9y4daR4Gd9cesopyM8XIsq2dKYAPlpq5O0
+yBvNKuAjA4FB5yNckCl8bC6fdSLccmKGp5HoK2CdIKnrHRGsqG6W+SB9m3x4e4jgqOs7ZksqAxKx
+5pUm65f+zBMpdJhmkiIwzkFFifnUpD9dKeeb3Xg7Nw52cyudEwyiv6Ph7NtNi7sK/BHeLiX3Y3CP
+CbG8o5ffijnZETL2autGBMF9R84PJ6K/aT3Z3HkGqQx8RYPh+JsRL9zVD+Djk/NSEYWpMexsncEF
+oZ3L9triyN96C1qYrkufW8MlnZJ4LtASGYQjks5tPoO9bu3WDkez3yYV/3sjEFu13UZ51sFI9xQH
+7CuH0Lc6j2hMPyrPI94x5pWKm5tqX2kaR4TNQmWN9RmP7pYqgWvSjuVe7zxCiEkP7/4a9afVcBa1
+s3VX1+pkTHok8VuDNh4Z7SJqH8LA7SLPv0sLDb0gGPCURLoGe6mQJ1lG/AHmvDXq5kkiAjIqmN4k
+n/e9/Ts23k2LKWkzpFOoaQOcI7o8zDAIswob7k1tMmFHqf3YDFemWSLSC4yS9sbvD4Y7Hixv4KYj
+rdUaul3uSIfJFu8O+0rpmgcNFW2Zv/arMr6rL9bim5FfzKGV+buUDySf/TE0eFAeSOcr+3eC+hr9
+wZ9fxzk+oE5HQ9fuSJZ+1aQf9cO8tTQaFEYgCGSVpFjeGwMa9VL/DXd3wBa74mU4sfJ94rIPqY9k
+IgUv8F8lB7Pw/5hGE05FezRKFE3C98IkNTc9/zJlpLcV0PQ4Prd+EjlcIMGAbAEPoyimk8ymUOTp
+zlhcDuH2yWmyPmIQRpCspQ6j+Z1RPJfBe9YeVaVdncI9+XQ4aCKIAkLoOQmKBJaZSP80B7Kuckh2
+01IpIaX80E6LYmB20zZ2tG7bR9yj7fqF7t3ATPcDf9ASxvnlPBZOuAD0n9D8yVAWX5g8Ptbcey+P
+y8geu6eKc191wwYHJBrW5L6kOe8Zjfn8lNTxxvVuTpDcSQMJtlnt3H7ecxcck6Y8SKdTRxe9C1+7
+qH53TesdBNpbHOubss2OcxNzjDibfI4fZf9almR/BtZrnyLGNLqNb5ChAI/5HFtppKMbLE3gNoQQ
+SKi1fWcoLsJBbeBw5CVHAQ5Tu5cAN1z+Po/VXrxwsDy0ur4PAHkok6ADwgbfik10FpwnE3yvNBoJ
+HmNODN/QtbFjNFE6z88+oPqilnOcl/sRIS00p42YmIrAkwGot+gNDr1ygq0kCJgOit3S43UXQZhi
+rt8uiR8c+u6ta5lmyJbKxiIaE8gFSR1JcqXFotmmnmKYEI+25tVXB/nYhuBBnlAcW+bbgj5rsLUr
+8czcw0Goqh43L649vPVJ7kSOBiaK/oOWYGK0zZoZ3sn8bZBn257zZMjOvsPnq0fZosKi9QRZh9dW
+5Bcv+U0008axfw3ah5rSYq9nFTmlaCkb5xHS4KwH7QbZe0Ro+lObMj4sj+g+NnH+1erPyEUOMd9W
+yj68tNVVgWI+1YFZbgcHWdrs7LqkZK3khCNEOerq6WhkRLtWYhl+a1PP8VIP0VibZzUDL9aaQWXu
+mN9iP906c/xBH8SxZ/rXSWonziTsDcsD1muKszdZZ89jWqVrJ0pmrT4R5kpuwyB7GI52OzsSOTdL
+bJhXA7IHaiSybNcRU21HrBeeOLsic+dtbUztr2Kpt/ZodyUCZ9rOQzVmcbuOa+XrHGPN7he4XJH2
+v2PlX0Se7wKR5oeyJa80i22uwETT+wv6Au/YJymNWOWka9UhMYZB3EjnaOQDXuvJCEet8bQTKtST
+nZchospdnPZcS3zZDNFM4vfgjSy1fgRtzTCZa98ujSVT0vG2+2LrOOR7m/PdYvghZW27gkd3PB8s
+LqSo6QAxKavbl8UqI09iFoEsI3B5Q3uST5wxhrFT3JX876Ny39BGd79cYILQRLsWWuSHvi/LWN51
+Vly2X4IccIUiHSH1zp2Se9oB6+aGg4VE05YMFS0ktSYVkV7VtO8WgfkKADKeENPMt7wnw9Wcmvq5
+5HA89n5X3/BoAG7UTH/WJlfan2nmQBsqYGyqhP3fS0keCPVssb51HU4ggv2JTMbT8kitinijrqSJ
+4qpZL8eRb3lx4TUlD4JZIBBFK2xedK3+lWvK3Tm199g0VUKULG/Y6SsbKbxfReOYDDS78/qJ6qTn
+JW3G0yK8CS8IG2ya9MWv2q80VE1I59jr67OnVmTJK71PPSuQczBhquepDLzPFAOVSawMf8aRAXDi
+p2P7tG5XeyRAwUUfFH/EFnn2J5eNwDEnhgjkX+mD1GRwQakL6OPXc/KAFBCsV9Ztf/SRK15zHoBX
+gGr/2pMAdllyHg/SD9Kziif/jh5fPmRMkGbnPpPIU5+SZnAPknSqF99kJctJvs6ripfE3awfbJXp
+BzK2G8Ka1TdQV/dILLra2UJbX3qVfakFb6BOsVqoyqDY+9rcPqlFh47M0/U19V1/lNLlf+xafh44
+UaSqbKSPYOan1sEY35TSXvH8JG/SoA8GYTEj+/orZdP6ezVK/y4pZLrzhkUewP6tUDqr40T1zNHr
+7xR1OT37WEFulDXJu5xvl+kgJbi9rZKHxh7loe3rnC4V1EGd96ObDT8XniOkDCm+2dAWd8oqC0Ff
+wfqPaJhOdcOvVXhjbjIIeCnFqHa1q1lI19AYA0BOGwiN5EGPR3//zzs1/fSMBCwG1rCn1bbzI50k
+g21PrA9M3+aHIFDpoJKBH7x+tvVY8IF09NATp95ENaxiRFkVP7hr7pUicFs09DWlzPfo7eNb3vKy
+a1eySEN8WwwomsHMurzBUal902hPRNHyxiyuonYuvyViFsKD+ID1VPvRhWWHfKpraGXwowfcEIKo
+1X1NGP5W4hy69uyWH1mlP/69mP6+gEWfv7RFfNZZCkbYTcWjQBSzXxOIVcwL//vi4GXJDS8lb2H9
+gMhb5AVDnbK4EZMflBwOnsNGDniY66ylCA3iWxGT6IcKC2Er9Q0HabkMg94UXGTcI80L+BiKJRU7
+vg+34cOudZKGJSzx3h75etATfFqx3kZ/XyYo+Q8dmm/1JHiZY2CRMUsqObG5wUU14u3vi+vjTG01
+OKVHbjn2IJvXL1FJvdtz7KP345eQPHvi/K12gmbJUKj1k+lZsdbPT/n2ibqs+6qtVrPCD9wbJVTE
+5rI+JHyFIxykEHQA6xYvhvwhsv74DXWLrtlIvjUXpwihUpyJtqeibr34aS9Su4wbnutJ+7GC+FWi
+KQw95F47RjT2N5DBjW1qr3QB8cZ8fple2fc+bAnd28NGMAOGSbwUB8Lx+39+PUkTJ/LFKUtZ3yVq
+fX7CWMUHknq+7J4fqmVcWegBuMVJmO9xe7X9Fu0Zl3ZDZYBuF/0RGa8f+YK3jkeY5pRgOeXm+gb/
+/jiOnL+vqpuG4EKnyRVZVrvHnGihW1gvFNnoB0lpE6I13mGN6/Tm0yIcKW+sTkgDi0eVmlZY9ZN2
+1mzl3/lO7++1qatOuao5L1qVPPy9OlW7TL8IOuhoYrK0sxR6cBEjv18prgxsBf/+qu0ERXAz9ENE
+48KsoRHl7Pl7R4mOE+cfiqKc+QmJTMVGwHex+GtPrEwgEcjFFpoDWv/Z8HEmoa70OYfXI63t+C8i
+5535FK28F5rmPQzpp9uZoOlOFe/SQVjPA0kEhzgXzXOvq3YbpIZxQj2mhaue8DKZg/4e2BlH23BY
+Yfa+ZRAVXU0Ycaplex5B7kO3lNq2V+3NNx8DZ9zZRb2TrXiEomar12Y0rhN7AJPfbk4kMFXi/Mna
+artYjXecF+u3W1rnxpseVS9/BxAeEU0EkS+9IDQSy9lRt4lrdRyO8cJfJp67s1V34BI590OjvSZL
+MKK/nU/9qoN0KdBhHe1Ooi6Ke+qYm1vDPwSd+h344wcSz2rvtvKrtrXLwNSbsQnZQ/NJLtU9ieKQ
+ymXODv1TxJg3EvKptJ0cp7fBsn/DMMDpyy9OsHurLtwPvFffVACec6EdK4vUflPdJhuBQD9VR3ZO
+69Dp4xBi2vqgqWwNV3VqjuP21mIGqIPqYRD9Q9uk3yidzUhrCN9yqr7bz7Z7hKmnv9wBmzXepqF+
+6uxqiVheFux/iV8/VL63sZT1grr16Az+m+3Wl862ggcKW2hJQ9KCWXACXxLx0G1Y1n5a1RxyxGF0
+DuWUaWiNjdpqfu2SjLtRBPvOaTs+XvOVHET4LOeOkegLt0OUJdJ8JSL295DaBxXEtLebj6myd5pV
+RLEbbAhaICV7utJFQOOZSaC+azTtrmozgcywfZlr1D4WKgCSANEqhn5vwxfYR4YzFB86fcjoUsm6
+OdeO8eiovgyDypiirEOaPUGYd0PySs79Oz4EO5wVjwZ/YEDucrKEwcVIMKs2tIqdKhc6Q899Zyt0
+vhFVNCzqVR/5aWuEuPf0A64tazsm9Wsnm3fVpm44LCPxhFpQ4CgnoF51jr0ZOKXwa/qsyHUGXIGf
+DoK63/ajJUIHs+mTHD6N2A+dhndjxqkX0gwBD0Fu9ykopvxowHYfGm6mTawX00vBwP05DnF21BZr
+COn41I64X8o9777YlH5vMlj6IPujP94wuxXoscclmrOc3iQ6hJAeLfk+qC38PZX20GmSPdtOSQ2X
+bgQlif5Ba+1n5F8/MD7FyYjXXsWkRynDSbGzHTc9mwvaM4Y8+TYa7RCC4nf3GOK6cKQzbv0F1l65
+Mv+TK93g1PR99qiONCyjcfKrZ435e9qn3onyN77kIAl2Lqn5zDloNOqxCk6CCxtv0eh6R4mlYUf2
+tPUqfITgqmNuTfGNsX1MmDEHfTCjzq2wHzmzA2KFjP0kKy3foRbgy3CE8TnZJPXbnHU1DXhti6J7
+ar85VhEno6s/FjKxsJtqmf5JDi78v9uU4uwICk82SZ+WO9G5HKJI5XFmld6ykY7b3PVDCn04z95r
+Fmjxdkp851TgSgwNNGvo9Rru3QKDJo1fNP1tTGOGKhIMcBvaSbwNbvJPlxTSDfkpIHTLRMQ84vSb
+dAbrjPIq2GQojCjzIvBtoIHyMg0FtTheU341fpIb7CWBfta11mAtN98bH3OQCSF/bGqEKH5fNv5m
+Ja03jjPZQHuDxwVZYwQI9YpJVO+DOd0vxgzYYKNUNi1rPKJETlRkuy0TIKFG+iHlCXyJiX55R2mZ
+fZFuuz6ONOpI8sIMLnQPMMdNrn9n47/ba0sTPIGKGvztJWh+fENVe4HD4uPvyKsUNnPkvcQLgTM3
++YfsXQbcOtOCjeMprKPjPC0i/GdsNeh98Bffv9q55FmZ5/ipl94FK6UuaonWr2BbazwyAbaheyBA
++12HSo7oP972ZsqG6UcYJmdzLs1rLviiwzr2vBTsVqErd/uFBpq0797VtI6kfsGQ9s+gjVLoQO2W
+g1uRsgEe9hUzPsWqxWPXpuKKTKr8KhYLb/JYuZ+YIuRtxmr3Mpp2dknbOL6b3cJ51KnXOpQ0j4Vp
+O8LvFKazHIJOxxZQodraLzg0QKvTFNrPVJQzJla1z3OenbhSNks5ei9SS5u7walpSlrSaZssgOKi
+ScVtHjxm7IbrTi/dbqevejQReI+mJpe7aoBLB+LugzBxV2f2MpcBoFfq7CGukZ56g0+fVkXEKACJ
+M/wxrTENk87I6Khb1JlAXMnOXS476Yg5xM1ZRovI6DGv3ZhGL5PdttLlBacusiivTx3gPUMaP0DY
+1sXGWH8PASzB9M2A9QJpe4gGiVvMGnXtqkGL3xaBD2tXQ/Q9Bnz0a6PW6kpvZxRdpAN8pIVR/paT
+KPeOW2sVAAQ4Vj7YitOYTsjHsnDiQ4zjaY8h33lzHA3GluTv9KfwEH5iufONm11rS1StHnkW2P4H
+ob15VFOJuBfpnvw0vF546+/srjQKmecBb123Us/pMcZbkO6qwskPjkHTat/ZfECjAIHE2iouiajp
+Y1sVvHjQmmC4ON7oYYsSptp1OXfFGsXhvTda1lyQP7VjFKR29kuaMSjCPGbtfq5H71r6I74y2lLN
+DVFD+b2XJGaYZULgLm2tFdHVu1yEflMxMvaKa1fX1st+ne4bV8/PRuszDA1dT72lbG1uFtTcPKWN
+vHissBXcFdzBZGDWNY0nOrSoQfa75V+HePDuc62heZPkgxeoOpB5xvy7WNMySqPW8AOwoNfCJfPu
+V8CmzSbVD4Z5qddVZZvwXPWvftZyU1VzoS08MS0oS/tvwkJj0QOE5tPTzsWUWkBzjL9aZLRzDnxm
+ob5mQSfHJqiV8eH9TW9oxo6SE80d7ewM/IaRw5t6GS5GlpeXlqyfHxzM6isRRfY8DUZmUrDrCeS9
+nXIQB/B9cnXxMKlDHkLaC0EylCAFeszGNdDHCoQ7iZOmLRRTAafAmvuJ6VwQ3PpXo1TLfd6u6sZi
+IOsCMc7innhWAymPsdO9YX+F6MwQhEMjGFiltN7wPtBkLyRWpl2UYqWuNk0PncmqRIDFZOTVkaP2
+mcLmh7mpW8KLazxnnt/8OLM6Md092Xg4H7AAgbXb4jDOhHlKfFkgTSMAO2Y39xEFpig2lZp/2e1w
+P2M3vBRCAy3ETS3jxV8PdTd3WWHGPOICtcMU69nDnJcO/nFz3Out8KKx950Li4/7gJN/2c/phMho
+SNqHrkjs89h67qfnijU7mcOoDdbB0idKdQly69eUav1uYr44lXzQqK6rGDX1qJyvdHLGc6noRkQ3
+0MHSON5C8XSzVFbYa0BcBzctp+kYTGsB3yJdzMRVkgXTXjVFdRZYezFGap751AwDXY3ce+PFbaSx
+TywEPeDtrq9C2kt03t9iz16IeXEiZVpmp0U5oxVZsYXXODalempYCb4dCWCGWt/4HGlUPsytoEnQ
+MAwG3NgzXy2HmD74/Ly2EMCbwS+LrzPdBq4DteV4/iOn2shtWHn9YR6D+Zt4R5+mBPxlrIc8ALQD
+JkqMvw36S6Nk8dJdFyZlSeM425dNFWTbuJkztNuZ492Abxn+p7EBqvN59cSrgDLjc7JOqNubl35M
+ki/horgW5EyAgJWAWXZl36Estr45RtxfWdME3jZOK4+pzSg/OdaGe2p72susu+O7pLGSmU0Y/lbY
+qNHnAA//tDYhU+tHAeYmrRnS4Pe14a2pQZY2AeY5ZmFpoQjqnGM/F/3JrPzqyYgn+Qw+UdKyDe2G
+Hwxv1Oe0pOrJ0hz90UMG8REg+49GvRqvslLlIyCkf/DcbiakeqivRtKI3249B2clRP7HhVyTsKtB
+fy7MFjs3i9g9XV6sC3+bKB1ur0+vbYv9pIb4aqL2WhusRidMm7a4TI4SdygYoq6iVDHRzHLXikVc
+gL0Rmhg10ouiAqz3MHsbQtB/2ZiZtR2C5YMcWXerCP54n6va3re+c0Z5fZ/j8dwGjVUSRxBjGzQx
+p2zGrq8Pqd3SYdkwDJfJQt8m7iMy7uPipM/pGLWG9ohGtnmg2iR/FKaId3ZZsJXW8VWomZu/0frX
+xuhom27TDgA5dq5FX3gfDq6T24Sc8I9YrPmaFHmmNkbSsxXUVA9bRbBn/rky8WQPpjcNh9rIg3vA
+qf7LGZxsX+i9/HK0oT3FcwXJipxqLwZBZWRhG3e+SVeRt1Cw3eFt3HViJOayssc9ICYuC0Nqx7jr
+aa/vmsW5aF6u8HOkEykSgRD7ckqy0MKUWeD+1407raMFqaPQ6pz5kxGxg6Bpa5QfuWoOscHu86F5
+zux8L3Kf61qZdnptYHFOhbS6e8oKrW2ZBPK5z9v5xMzisiGDz/yDkiwc+GemFBAV31jwvegS2LQq
+mKYIeYByE+I4AyxHNtR+JGeNRyTHuX3rijqNwPvaXV+g7u4TbQ6VWq2mCx3dDSEENxcN3oVuK3lq
+eiu5wUbnUV8n812iFfIImbQcbK/exr6ViO2s2caLS5/seaFJ9NiTzXMHJAFzLOo+vXoFeI9ZVhNH
+O2xAxYa7NTqtuGVd5eyQDwfXrnSD80j0HI14GlOAPpXHoWj8nZt71O/G8yyOSdzwl5V5GKqyv2sN
+OeA3BLTTw75VXXGRsASEUBjjUD7BSzQKes3v0RyTuYqZkNbCjdX1LY8zZ1HPTV8Pl9R3KddklAuJ
+wnGY6jlFBIsjekloyA3pL3hlsSfCD2mmcVFs05uECfG+KEpAm3hsuJrBB1FNLcHFc0qMRLFpY2YW
+KQ+MchiaY+LiQ+4lmRUaVYxHTD3xL99LCbApp+yr68r+OFo2iGs7GA1EVylQvpE2CIyX6MUjjnnx
+Y7O6ncgF6E/5PHGeA6DFNwsU6mzPBoj4XBlvg99b0Mvs2BUdDHDvwF8yA1HrEHLDFdb3f7G5rAP3
+rEqwU9SNwPoWtuPfFovT299ON2I4unfhrxeNB8gJOYON1LHT81/SoGo7sDJkfkdPA6Kv2Q9AtVJ2
+F1k3zPMddpkfe8EKurFrPXmztRLiVOHbf9RRZe5oYGQBEHnPzDRAIoDqMDH8BUbp80KUaAYApW6n
+f5vesi1cBVnfz1+48RXhNBwvlJezabqYGok8oM95XnkozIyhJm3tWbJq7eiNfdW9p1SiTHP05Z4q
+tJUQa7C8z+AclHURfN/W94jfCaex1EOeTd2OyuB05zKVbID12hO6Ke8mEt0PjYFxwEA+OvOMQ6so
+PX+/aN5ppv5ii9oSYWJTMhXEdbjk2kSVEkQAfv1cN0PdQt2g977c5ZW/XDV9wlE/BO15Sm2TMZD3
+WCN7PlDZRrCz8px7KzjhC0Cb05QJnYb+9C0Cvlb6EEBSyyRkW6u4TJlSeUqxRuUcz194G6bnvFza
+J+aQ4ALBhYBVZ8n8K7atWj5YvR/FD7EqDKt+ZrZP0gHlHKeZHkAqJtdHLkguMGZ6Jm6FXTIdUCnZ
+PM2GMJsSO/743wv179Lvrpb1n/6/C+7/Q7L/f1ikv2ZO/k8i/ce6+0rL/3CJUqez/p1/S/Qdesh8
+uHLP80zTcLFj/j+Jvmv/yzddZizk8WTmebgB/q3Qd/5Fpi+6fd/31jYyfKL/n0D/X6Q2rT/R0IPV
+Y4p/9H8h0McP9J8eUcvDxGpwDlDrrhtYT/9br4OYMopfgeNQoqWombjwlzQUU1o+tbrZvslAz74y
+T3p/ikI6R7ud7GOsVfpnwWI7hmksBUa5pkHCXk9md2dinyMTx9LGb8lq8IAJdNRQWGkxzaz5bP82
+jLh/83k2/8a+hpyA/rzyyZYlQo6BxvuvQiToMRRZFy2TFrZ1JpxcxJTzDrAiHUKObseR09yXgU0U
+UpqhPYzG3Omfe3BD0pXSyULQMioNFdyMKzys03gJ60onCUACWHyXSNKeZp3jZF/ZncR4xRy3hrM0
+y8ugGQ6G0461fQP8ND2PSqxe/Tl20do2nGobs6rclfakEx5bUY+5duTM2cSesi6tA1wT2g1ycMc1
+uiGikCX9tp0lfQw8KzHg3hONUAot1558TZff5tC57zgM4dvmQaFNzkWLYtB39eFkiFR/x+eu3syi
+6eFSqhkZkW/2efGgc/UQRGroy8uSoRhDrZAREPNf7J1HkuTIeq33wjmacAAOMSDNXuiI1FpMYCmq
+oKUDcAB7erO3A27sfYjqbuu+NNLsjslrd9BdnZkVkQE4fnHOdzS9FQGZvMS1Lnv7m2Fh8UkmaAWg
+CO0/o1s7MK4sT7vAIFw5HC1p1oubV1boV9TMdojd+aIJWHTIaJzGZBvAxSVevJlCcwMGw/yGC4M1
+t2xDtrMm/o3olOWL4/U+hzov7nDWh1Z9D7l9uNWG5jGClX5hTdksUTUprbzJIa3bjdl1zpNmLHmM
+xqyhD/ZKFjuGzeQJpTSyMxDyxiup8rw+gTZTcZZdRwXjU6BfI529ZdJS4ID0cf71CoVLWROxvIq1
+9h6HRgG+MhNW3+eQ1ErgOVxX2bKooc1hblBhw/jBkR+/sMDiVVahoP91lM0jT1Xj41wuvrdUlcF9
+JENcemGoEkJsSZrIDnxBOa4aFl0wB+JIY5PrXMiOQROoF9ySctn3h0wk42oUr442UC8QDiKjnWlZ
+zjawhwFJBeyMZc7F41V0cY5/MFYebXXCI5DhMxYXclaUexpnFN7ICpU49X1KH9a1oFJVRIIyEpfY
+Gsi+7DUPFteqL3BoUCrVdT5+a1C4xaHl87v1q06gcArhhhhzNwgCVzuUEDjCjeCUGoXb7GbQ9hdx
+nAG3gbWboaCDn1D5SphrnfjkocOL8xE0QHp88twQFTf2FXy0Y4Yld2JsBZtRVbYDsNlhWsvdTzGx
+xPW852zjP8mqjr5jeq1vox/jDw0F6hKSk1CrzNU8gW22JLdz2mePZQhpC7rb5Lz2IOgUIRGt+2SP
+JSLOtACDsEPoZKHMQw1DV69cYt2dUYU7jL+EIGVBJp5dwZjhKJwpeiqLVCOJwWQ7YKIDmpS6ie+s
+OsaAXP6B6JnuyhnNk20nq6r20oRFQtlxvYWl5qMrzFcbMAZYpIDp0KquZOWu61z7j1FcMzyg3DE5
+IFIWpTOXcbAL7N55nLliH2HUoDxx0ig/Juj02k3XK0nzLwdiUuu+EN8dazAgIrTXbFyRKvfbOkD0
+jH/D6jesdTnK6qCgla1Cv70MjAGbb0Ov7h0G3F9H5lPc+6mSDX+N6ACUREMWb5ROu9cGZc6VMGnq
+OKPVTWozd2B359nXllObb4hrgp9ma40/zc4IfipH1mjtECRNy9KA/PHQVzFrEgTm0ExFYaFSy9E0
+APQgu3AUiHe0Roa7imJGSysVzPYXQNr+AbwLAmgVuOoxxRP6VWBksU82sPS9MF0UV6OvMLQnA63+
+LiTwtoOiFTI0j+NGPA8VmnkkK6gJXMyy1+S0hh9Bt3hhOEXuAiPQ2Z55GHdI2MkYYHfhCPwfBHvv
+mKArzisx+uEq7pPpSjf5aCI+1eOnRzpmtpLG1H2lNsh+QkdK292Eo+XRTLaDuUl1lr/3hcfPjGu/
+HA8kt9ufjOVhlAXTVH2kxLXTAFBy3lipZf600FNcq0lZHyzkGjqPRrkfwzKDiyWpDSjpcnUKku5Z
+MP9AHpX1KH4m03KGQw6qeNo0OimwI5jGJ4083b+a2TckVUdUiKrmPL5Jk8ahpyiG8ofImeDQugdZ
+xoXv5IAPxry/MIqR36WNVOdn5Drh+2TX0R1iZHXr5nH3FnfSR0nKr++Lkri9GItGmJuxnn0+t5rN
+3zrPGACsKMkXnLSj8DqYzpSP9OJxfy1Cg0FFJ2DD4YxR8hGIo29ugO4kt8IqiI6vzUTigQaKO+4G
+NQ0oaJtEevsgzMdnqYq4WRGi+2whUXlyWmlj0YAL7G1SmqF0g8kZepoDVTVd4W7FFsypDU6X3dXo
+8YQRBaJ2u5YgDYNo3s7EgJepxWVcki90HcvZew+6AiYd3bfxk54Ut3s4OM5NiPL1uW/K/FFbMNM2
+ymekjYtMMntedH0rxSMVy6Hrj/dZHskfuFvdC4PT5YgAAw1yxJR2OLLF7rIdGDu/W2c9oZYb+A7R
+MYXA4+xm1+7uVIAFfTMg57tIwZF3x5Zl9Xs14AEb8fnLHUHtPGCSYO5PXtQG90jwp3HF71yQ18wk
+OFzjum62vhi97NAIp0wZWNXON8KvIdnijikvnLmdnx3dsxXl4QPNKrQmg8aYj2tPy22C+Rri+bV2
+AtSjCLfIzlkc2eweJJv/rBt6bgors7aF43fYQyAQ16s6ZaqyIt493SL96a/7KZhe+8C2H2VmRw8S
+VxWIo7FRJm0zALaNlU3mz5BD5WjAzKzFosdzcRy67JWSGtFKOnW3UZdiYMCqXD1yIGiMKp40b9jD
+2uOasDAnXclkcKYtWL5CrlFlm0c5aN5/MMPHWxuF9rwVx4DzFTVG+GTWjnpxkiB/x64wXfQtDee6
+1ukTT8vgxddD9W1COLht+7r4TOUMamCcRkYg6HVA6tg0oEwjZ1SEvar5j5OXp7vBn1N+664XMtDD
+lDBuhROSTh9x3ETrzMK2lQfuIFap1YOc6wavuRWV9q8nWEsX1KxlfRF67aaeDPk+TEpeeW7afuRJ
+5rwA82ObqGjtP0EzedlqxBlI2clqiPm9THNmqKA4PsKIzfu2j4PocpbNyPOTX+hV2GdmsjKjsb/s
+2GL+aAEd4IlToyWPFqx9frNjlbwZMk7e/MR19JZCq8UfNWM9H0ZU3WxPWuort4vCmj9OqmYfFobG
+USaAUbqpHHFUxBZFhoorv9/Cq5vK9QBkumLj3vbBJs3K4avPk3cVdTI5OOks7mI2Pw3Aw6qLsfGQ
+3A0NFf4lfCsyjTlHBujWtdsF5ckULMs4ZUXrHbpmYKFCMPmid2XGlmwNR4JoroFj3IbQK6Z1FwHh
+Wg8FtyvT+mbKLwyzsN48Pwq5rMqO76fsB/PoVO0BP7BxkRaajrn1UYtfehOdwc4uNCUdLlG40liA
+lh1Oc168iADehd8pSr2sWvxSpV+xuS3dga8H9oTe17da/hyJBIM3Ixqq4YBzhEqz1WwbkU7YPNPT
+ToMbaLuZasZxWuBwbYt+kq+gZhwmiR2xTJcf7KnB4iEQL+vhDmmzf9B+hJJ5zk1x4LCNw23LD5kP
+tmZ9sGIqvUxuQHbOW4OJDX5dvRgXzAn2BiZmC3ortpYMQ7MHNxYv0oJ9aPWg7yJ2O4+s+9F6znE2
+GytHphq0uBN8QkY1YSZPY4710Snxv0qWkU/CYGWyAuCG8Q5wwfiusj79UQ6LXSzH11juEviKp8Ay
+nOTotV1w2bbLRlvK9tUDdwCx0Rjil6qawnAL/TxiBJIyCFqP7hzQHBSBNR8TFtAo2bjw2Z7kOAYd
+whQEhBGZxLvSbRceuFDxVdf2ksfhwD+vW594ACreqMN2acj8B04dA/JOkFOLt1lNm1Aq5NS/kpZ+
+t/Xf/mLx/zKq/8kK+Id//ff/CbOL/zZc/f+ghfh7uvoyuuBb/qALEIbuBUwpZYBa1ce//+foQjK6
+AA/geEt+qykZR/w5u3B+c5giSLBTwoUkYPmMNRR+6/jf/sUQv1FKn9NeHZdnA//7Z2YXf59c0D8z
+B2GwwvDCsoUP7IrJxl+CHRZodWpFOEy7qO9AvyOly3B3EfWASKMdsMKXpZg2M8h1mi9DW8MvVMV/
+GbgjeCv1r2vr+P1v/7K8AschcYq/3bIdQTrm319BbXgc2Z0zkm6FsAfqcKPDw5S1xrvtF+FrLJUV
+b3jUiVeJgTdl1K0iRvwQTpnk2xobykQDvm97g5VoSk2klr1w+PmXidTv1/p/nQt0fpVkGEB58DCD
+oT/6h1dpJiVdL4QhKh+zvO9Quz+ixkr3//3fwgrob78Nlz/gp8OvQwksF6zE8tv6y+cRJZHKhojp
+aKTaMF95Z2JzpTz3KwV4Rck1AktxzmBnP/TrByfQ4023cJ99X2UgA8446BTp/7Q1lAEm2mhB+9zU
+hGDpNcNYUNIR/Yt/CRpIi9swmGLnKvGj0XpwKrQ625AJL2fnFKT9MRKVDZ+6GuPm5MJdoIRq09na
+id6tXpjWQbYmDQE6mJPFNqPYltY44rzC33uWpVdm3bp3WsRMOfzUaMqLMeiMYdcm2YyRWGFp2/kN
+y++dOWZ5sAF0y2GlW4vj37FL/is6kUKDenZmf40oLc9uhzO3W/mlR25YN48mvYZAy6FOyie+5rks
+c+re3CWpcD1ZcXhwHSJlXmLlIFNFFdONGxc8TXJYsgrK1xol3HyMMhhQaKkcHqiJsgLUFUD9qZPy
+Oq72BvrRds22M0yOyumxsmvRZVdcsICn/NofACJQdNFxoEltAYIp67VII9jIBqE4zD/AB7AXoz41
+NxJd2WswF3G3TfMAB2Wip8m6imTFih1R+WytW292rxuAyy/JmOHPAVzbIQyeIx/t99Qpbs20wx0c
+Sk0pMrYBpv+i5VGws1ptts9lwATlyJLFShnFszNcN05q1s8RzJLuume4sTyRW+fR7drcYRyQGMEB
+a6PpHtFZ+PKow2IUNPduPb0Xc9kVj1z9td6Uvu8/1a1tVUcVomtcEyVCt00ESPMtO7s+QbRlhh4T
+StHufX8A6Yi5K2iuEkNqe8WOYzEK4orFmV+CGcIq5jjJbeEpt8WZPyYAllIBZiDzSrImKlEZOEwH
+BBhcPSkAVofiZ0v7YLKjzABSPo+RcIrnUBvFN6VnirETNjNIy0E5T26iJsRPGM7Y2+pssi4Ri2E2
+ZH7p34eiil9TS7pfZtGY7XGMayx3bqnHg2nPsXGtG9ft4XzHzauPbVfTaAzoyXDV3OdTlX4z6O2K
+Q42P5K7W2r0jjS/q1ok/tAi9RIu+QDB1Yj7gjQ+wDSduCZWFNTy0LDD3mlVogwg/dKjpq6CVhxnu
+MB+prwoU6F77kwILzWU7IW5cKNIg9Gr27MjaHXxkCsAq7Gfk6tcCtWe2EnKUHzjfDe7xlAcSWhGr
+cbb0sPqQph11covpe+f6k3B2DmOxfdcxBVzVhIOZ63qc8B6y3gvmNc1atWktx+r3TKyGN9hL4JBp
+WWa1ltnAB5hMOaHpgzHjcp1a+KVHUNXehPTdB52g6oWpVSejZrA9GWo8wX5C8JimpXfICpZua11o
+X6AzkkG4EstfhavKYp1Tgn511q3A2rCxR4tLEK1BjKtotpadHAhoYmLUE8Ds6ElGY/gzJlQTSFlX
+gPlPEKAyNersJ6+SrzlO4M/MbPEpJFRmSxUF7SU6072rSMHNQx3j6oNXj8k1z93U25BmNOt9aOsz
+I1yxQdWiAULWdhIwgl6Q4glYXibwaZ8+oliFOZ535Lfgc1xY5P2ZS64iCaO8g6ga7bIzuzyOFo45
+/jrvWZzp5l5StBfIf+nagzP/nAcYLHR55qLLKam+2lR131EvaEWNeMxO9gJTN4aZjuVMWB/tBbY+
+aP2FYeUuBGWIEuIXkT3HXtUGRgGExkPRE9TNS2WaJLQvEPeAR86blX/VtE73w4J591p8cJqArH0v
+4L/jze++p7ZlxNCcAfGlWRnP1kKNz4YuBiBfLDD5BGL9m14I80wUnAJcDtz5/oygz8Iegqy9kOnL
+Kc7zbZxG00dcqEv3zK9H5yoe0L3Hn13A3CuD9PeUnHn3ftJjI/Nnq3qtE4uBHpPj5rrj5oTFdcbl
+T7/Q+WeMPhaReFq7C13fTS1A+z6MEqD78JaxiXotlr06DjSD5YXRPyd0cZTfC7rfTuzyIfsF9F/Y
+/tEZ859rL38mwgRrbn8OAjCCJRSAdwqbILDrb/scGjAu+QHYcYkScM+xAuIcMZD7SuJaXZIHqnMI
+QXkOJCiWbILxHFPQGyQWZBBB5dryliAD+CkT0X9qCThAc0nYgb3kHiRFFLk4aQdu6vkcjVBHlqph
+SC6RCe0ctz/6wgyKlVwyFaAT1Bhul6SFMk3S296EJrCNzlEM+KuGF0aFyxHq98vQ0bWxSRRpHN2F
+5ziHwKsxe07glMpLFIUNK5POoxSs8jG9m+wZgMoE6g8I8BIV8b+Lz/9EJ6MTsP9SAC78s9+5Zr/z
+cZOP/j/+79/QZL++5Y/mwfzN9mgOAqpBhwrdpVr8HU3mnBG4ggUVObemEEtf8QeazIJaxio0oK5H
+jk0Q3V+aB/M3fpgpWYwuK0sA1v9M80Dg4t/LVaZhJitZVkeeTXBZsOxY/1quMoM2QLZwKEZ5nBAd
+4+CFnJlYVpva6szDr1owG6XzVAQUM6vQqSeCnDMPpZzBPvCpsx3FlIjcBSJT/cbIdwbA1RvPlbS0
+9BvRNxgxJpJFGC2D1k6Gzg5DlfXDKBGOHpJR2IjaO4pLNpBS3Qk/dKPNUDInBsBLltY+YQ2H0oG6
+9WeJ1+IHTJL5cfGOJNAEiokkN1/G97VlEppt+FPXQzIFF3YgaEGzqEz9rjn0KBAwsFo+BP7JM+H7
+pIm3NurKuS5Y1lLIUDVnK8+UhlpVVKtfCEGD787z6h6Ke0WdPCsjeKxL1c2P7KRbapw8svxDPxOG
+Q7xzVL7CwHOmFSZYNz/Fg2eh/MO2KLeFcNzpwrJyjseoq8lrMRlYAIjhfNwwvnd/GLOO3wfX78Lt
+KHzKTk26TLaGP5N0G6Yt7cvk1324tY2WHQfG4dpZx1Unn2wm+rf2VPX5QUu2BOB1akQPSlvjfdfp
+VmxKjvVihafbt9Zgn7IfKXBWJptQ89a+odgrhqbhARmIMmr8Crf+C+MVxjzKT8F7hk4cpZuS6zTn
+gU86yKoeB3mDoB24W6LD7jsvUgzzcMsygsCwjjzGiWPC2mVxC3MNrqZYtdLAaVA00r5JXSwW66QO
+LS4XN7NxOoxN9F1l4CRWXZFM4SYpB6B0tTW3r8puhvqSEY8ZH5C4A6BxDIexEZBYEEx5YMt7KqKa
+Z0Ljpv1aQjS5bnFSRNfQklO1p8Pq12lXe9EBeoB/x84n/zIDbX+DwYrY0Is4fA8GXDQbo0x6lhvs
+nJcFXt6vDREmDxIdNeT4FHE4OpXGumPiiwDcb90fI8iAcucjgQaJETUAvFy3xuklqCeHObtp7L7A
+iDTHT1hFoNyS3JR9zSTjIkLHT4aSWL2OOgV/gbbKEzsCQMTTNC0hxGGGrFIjYkS8Odf5pdVNLpdl
+BiBJadmre4obzzpwHTBn9vWyBwU7CFQvtviIVn0SINYtzAmXlFnIdtzGhR9jbZisqtsXBCHD1CpH
+6BolYVA3pW83/VVZyMlCNq5iHC+TpYkWipMcdTZWxsOQTKV35aO0qaSdnWgsBNfU4BsPQMBiYr+q
+DMB16EXqwx3i7maBpPVbFJbFXSUWf3Tkm/aN43SjPkRJh0w4SyydHQabC3VjtPPCXcnrZUIRjRhE
+Z7+p9C4vQlA6TVnqTYRlXO2zkZiUlWGPYMKczn/TSAI3udL6DQ18O18RWGUO635us7sROlx1aLhR
+OB8KWeOAM0z0dWna4tEqHPO5ZIUNt6aohuGijdoBjnTl2B+uIRjQ+36gj0HpYjtJWOc+0mnX7rpC
+43U7sVMFkN3nfCQm7B5g4C7CJBTDiX0pmZaX7BdBZK3cJmheLEPAO6Ch7tNdCdpMrL1GorlEucsa
+VeKA/InBHv5cDVU1W8Vj5DiIVlX4Iv0YIR/8CM451B1gC/rWU/0W594M7qMR0rzLfDQMxxp7RHVw
+0BBcIUBvWBFFE19euX7/bGSU8Nupy6IrB/uE3FZtWVw5SZ6n27Kci6euTmgMWgYL496l5cQ7Ikme
+mQbw4QYQSYvuMJ9f03yw3/M2L6ZNmIT5Vww1VW89NMrNqq3j6TJuMXfuHNWIt0q4QKisIFPPDntD
+bt2h7sx1bNkQ0lMEMm9THoUXCknsI3CD9CEl69tfjdriqsLIQiZZafTFBal7cb+eUQ4ZK1l6412E
+zNdc96nRX9mDX9eviZHHV5WvI+BGJu6/vXJSqqABB/a7m/JA2M5Bi2iRirOnv4ltdejgWHmg+PT4
+IAdumnXWkgi2ihMPM6qF2fOecVuTrQmyUe1Dr01nLy0+ZqBSLrcGIuVm2pLo3nxXHqo1icoMpmYV
+V7eRD59ni7bE7jaWzLA9LOMtwiJgtlyxmwsBfPczUSO88u61G+gguC88632ilfdWFKbi0fTD/NZz
+kfqzZGOMtBJz692YYjwZCDF4IzOoCCKNCyiVciiWDtzDLElva4rX3i38Fy0KAOsEJrBNQBcO9knD
+v7+NMAO1W6j1/WkoeiYdFZoc0vMicEfruZ9gPGHfG/0tkVGsiIeZDmM1EDosAcdV8o3rP8hPqQ7V
+HbE5k8k+FFbEZkjCiUNqnDADMZgp17KxynYvGpXG68FRNveyokdZd7FgZc0yotoQHFm0hMiN3ECI
+3eWPIGdEuK3d0cnXZumhmGeshJce1f9bhhg9o/ek8sfNisN2Z/V5hVCUWPsrxB84kBsGtC82VjTQ
+T67kk5qmeMHx+GGDQ7Imdpwbl4QrkAOAwT2A4gL3s2YvVXO9i4PXaiE2UVhggGyZNXR4zQcMg4Tj
+zY+VnnhwBrC2feDhRv3Mx+iSycdY5CU12s7ftG2GjXvMTPcH22HCM7wYVEtavXP0NzwanKT/aoNy
+8DhUcvWIjagv1o1l13Dh50CbmG4Rf2+y3mouEPGnSO8H6UQ7sG8MfpIgDB4FgkqW0djLWFY6nmmu
+EbTP10HtVB0tttG88wwnH9ORwr9LIEo122xeCqE+KgJjg5+GpW2Jevhl1g5nDWOzqd965SBRMNUs
+pFlWjhjBkcdAyuAwh9tmj7nxVk1Mv9bVksKKYgZ2GHyjSIFeVjWq7yAnY4y1bwGTlsh1rMxSwT5d
+pW3cA6pyl7kNSQPprRlE7Y7NfF5vhhHh7Y77RektrzxFtyEHDpmhTlD2O3EovlRIZCeP2Iw9EPBt
+6gLb67qXODbU6xCj/s1Lt8NkJXvzUaGqH9cukOl607hNfz1a7PJ4OxnJ2Hixuwty5plEoTkyj4bf
+d3eFwEG0GVNl3kexriqEdcT/bVrRZChTHcURaSENu6sz0zZXAneVf+G2ddCtFZuzmlV2TT3lW1n1
+yeadwnQiiAYcVOmSghJb1cx+OhXDHXt4baxr6tpo44W4hRipEQUzNUaPgczE0rDBjC12FujuYC0s
+HWNQdGcL3AwqLZrcoZbrOUqgGJlu6V4zpqHJGznwebzUKWozzMfkzmCgwMwh8vfZ4LClspogh5MT
+AMpI53hK64ITaeVnkfk5GZ4AFjS10QM+NVpQxBD1vWJCFW0z1BSEbjG8k2vbyec9aIBU7AidYloV
+DH7kXfhq0pdmngPDVU1l7THV2mB/YKjgwrUkA7KuWhRSs71cLgnz2y+bI+WjGIbB2dvC7A0ifhbL
+AFOcksskLLJvdEmSjHbiND2ycfvmCnpX4R3Yu6XUjQPGfQRnDGRCsE3e1vJczvF4xnK+xkDr7Mc+
+yUOsZtJjlyYUekWjZ1++TmPZHFERpiS8gYw+Gu2g2+1sjhxRsdX4P4ak680djh9ZsKe0zDfTy5AW
+IIlDFGL6Xfwe+13U7STlbr4TqNiYDUJpsPbAZ6BJuAlrX17xzN7Dg2z3Gatc/FSuRY3vwj1q6SXM
+KNwGNQg40g9CHOh+SLroavSGxoLDGtQ/TNyCGvIkY9pNNjQF5Ei/7xv6nrL/9DKfRqg3zExBjRbF
+p2xtGzs2scFPVbksH0dPe0i4zJbrL3YKm1fSM1w8CS69Fn4d4C9iI5vy5FPz4arP2di6OfaI5RAZ
+uRJwUHFzGXHLj+XIafdW1Hnuqqr8BcdA7i5PxKRx7Tu2BRMf5tAZOxn25d5RlomVPOnS3f9OFf5x
+qoB8xAqWvdC//iFZ/k9zhfuq/P6P/1cmf5NU//l9f4iqg9881lSe5yPQs/hH9Na/Dxdc9zdmBMwV
+TBZfkrUc/+mP4YL3WwBmjj0YW03XNs9byz9XkzYodcow9lcsFOl2xT8zXRCW+Q/jBSTaDCtcl6WY
+xf9ReP99vOAjpyhn28o2jNN++HVaHd2k7o86sRcX3AAGoyMQGPB+cOEQ9bYtBqK2oRX0MC0D8VY2
+dfdmqr6sNqiiMSk7MYnQZSxPM+xEMGiDPe1q4wgCoUAF1GdXAyW5uQoMujaIpNYhcBNOxV7b9nNi
+UfqzaQs+eJ4MW8K07De0rPXOi3R1TNpm2gM8Cl9T3gk2h8iUi4UM55a0FJMGWXLQmjihhrH031u3
+wQ6begC+7NzfMy4siQoHUfJR9ELfhk2p3BX01vSdmbreGRTDL4lraVw1PhUJ7x2RERkvM7CJaMC+
+FAq0zZnwrvtSAgUM/OyzxiVNOqepX+3G15iicZuAhDXr7USjDJhiPhFYE6FSy6J7kabHkezMNXSY
+4hPM9iAPsNHVJ31w0SOrKL3XARmYXiWmumIDpPZDVLII6/mtxHKxv3QEqOxZF9vy04R//T27kXsd
+NLQR2zGggoKcrNRL3xfVW2kw/8kBf+/EyJMM7a/auVAuKQZNedeYvt57XZggbqo74tv9DBsWmwzS
+idsrtxrCXWwx+VpRQcU/M3Y234QKGc88mkGVE5S2YoKwaJrD9IbHI+Zdz1CHwgV7UVTsnrrYjU9Q
+a25wPT/gszyNDNptnHZtkqt9WcJlQ1TrrKDlNNvGS/sXchzI00AU1PBwCRpgnyX9J2onVKyy59da
+j3I+lbq8kxn/0dBAO1JsbJGXkTbJ1YVgKCt3rYNoP1wLQ334uoZwUZxCpcSd3YivlgHRPnfSe1JE
+mn3QeWKvwRdvJ0WWN+zcdMsolsxs18v5AV62KZc47QGXdA8ztSn2FYwJRgt5JPYeFpidiscWkwsK
+N16H7wv4EDG5mgkQlgtMg9YiVT8GspFXpVETRJgEwQu/jOwVS31xR8qncYzZym4BTgx8WEiGlyUD
+PTw2c58rYMDcE1dF8WrqqIOWg/ppainbbSTot6kzhMc6isYnq2i8vWSlcB3lefBsInjRKzakw7Vb
+JdaJeE/jeS6n7joQKcOVdHp3iw48bxDjrI96Zb823Eq7enKsGwISgS+IOm7ISvTVMWB3++aEwxa8
+3SbuyNRa09YGrEdd706a1nQBViakliqaY10O443lGPWrVTaPk2tZt53fD1ZNhoyjjMcWo/3k7Mwu
+Si/Awts43JfdNyNPUsfxDJyS8cnowhcDlt1bNQI6AvCvdwCvwY5JXGSOu3CsEngt7Nu4ZRf00xnB
+ZlYtiKNfLKSIL/TRsH2Y4dnw1UtAvhQXu4ys4juFQ/rSJ28UThZfqK1q2ZsHkJ8ypG2MQdLafsvO
+uK2F+HSetilivXZY5SGFtcDIzAgcVcaWDZKS0D8It4bNtVjrqgzkhGYGg6x4+WaaRJIAGEOwdZSR
+V1+nXhycPJ1gdivGHDyw46bhJW2a0SJ6gMq30jntBjom42dWYBJLcLQ8wZfsDh0KDWUxjwHLe5jh
+3p3G1B4QTHnGHSKz/pApXTAPgVbMtJTJmwa+5JWI9te4OKHHmOAFoCXlxQM7XDhHYUbX7WbF8ICF
+PNk1ZhignZuy5nIe4mSfjiZaPU95WyTD3QY5JEuvcohvvNT5TEsSnTJUcXt/jotvA/nue56gm92o
+qKWpxke8EbxhgKlJrW9qF7Uol4SLVLZJqOFrNX+gFrziRnIOSTylt2IQ3s4IRb77xd5DY3efFeDf
+6LZh451/9xVZCVkhF60bCyXC2Vp+x9B2RtLLgvSIWTsj/K23om+/ddA4gBPjyLTmyQJJBIgGxDsK
+ouvIcnBYhACSoLNiXzxms+ZngkYtN07A5xv1BYgtEFysgpmoPzrMhNh3E3ZL6w64TmvbYkuouYRm
+Yz6oVmGG05PzhEpjccaWOBg9UKpPBGvUp5GxyAEFG17EWNakt/ITbVk0Jxyu8T2BBQj45hqXnOeh
+pzPbCRWfo6HcYSlaHB6aqylqmvgFYyKUE7Poi/2vOyLTNF6OmkpspDZvyZwXwJkNis9MIZ9FXs/b
+//USKUUgqFV9+5pVGCpT9oLfGGJ4TXh62GYtHDQzR8iA+sXGt6cq03nqvc6oNwjf/Q8wCuUJ1aLz
+ZCbcqVz4FgJDXRSEzZ7vBF2r8VM38MuqCMpEZsXMoc9AR9OEmRBxTD36xFKDnkqGcE8IHxaWNuYP
+80V9mWlwKGCilu8iUAA4RgPinps+RV5XeYNxgY+T98lK+hHmC99RE6vF2xWqaDvkfRx5D2WRVGu3
+r8y3gcxlEAXCgMQ0SpswL6KUtxauAcbBBV+vmwKWVmsyOFsNJQvXXUvA2AZvHEAshTzoorCYea4d
+xPyXIsCC7pG9gAMe3wUP5UTvLAJmb91YIByMi9jYju2INSjl93RhQ6ynUeuN+YoQlPlBAkliu0if
+sXht1KF24lisvIiwLqL2zPeZbuU0IcUm9mPqT+Zsw7myvQGxaph5d1DJWpKHCbh7ldjAFyeaUzGF
+Myv96sLUfPZiOul2SgyTKa82mmM+e96xtY3kpgfw6W7rxu7eFD0MiC0gdSfLs2cC5HRaIladvf4+
+0Gx694U2UFwxxtxEfNlGdAzwVkZlBz88e9KfopuCU7+QvJhpvo1xO98mw4BzWIVpsc75aF6aGde3
+TFPvXseWmQLZjON9W6XRMeSuo6RKTPuiK4R/VRfEN27r1BJy69t9uPJ8PzzSqdbGAcleetk7VkvU
+bWMB7eoce5khtXKPyTl/HqZArC0Z91dC1f4piqNwj4Ct7jC09QSGVzksLAK+qi2dGbqNvCfzIuU5
+KdI6+JzTSOEUKtrghDOapUeX9cDiqgG98Y5xtjoJ3eobbvrxIeyt+nkgII44VmukiB0xlKURx88G
+UwWs/pa8EGsqjVNPUCT6Ap7T17OcqfpmZz4hnPJvueamq2nEaiyqwGdYzfgJY5hllgUwd7M6gVYy
+n3s4cHrF24MrwspjiU3hqer07A2iYYj2KSAnhjdFTgi1MwXNt+uM0NWHjCTm3q4VzwyRXolyiedA
+ZkWlazpUztsKz+AT/xoR85jbr7Sxrdog7PW+oXAhAUcd578gC3MfuTzdq8armGWRCrZH9+yRNU7s
+izbF9NCT+L3Emg/10db/n73z2K0bW7Pwqxh3TmNzMw/6An2ycnTZ1oSQLBUzN3N6m0aP71PUi/VH
+yaqSZFsVVEDfBloz2/JhOOQO/7/Wt8LiI0kd7k8amrPbeXfhznh+rHoi1ZlKFPWCpTX54Q3uYLav
+NIIAtptVWlwWBsKMfVpT2lHrRtks9a3rG3/Ik8Mx1Z1lV2p8a3jkbjqDb3JCM3OUwpFwN5AjSuOm
+M31tv2E0WxpTJfd0w3Q202B7Gxcs0BG1XOfO0ecwewLXMcPkfAd537GbbpNhaQrXO/ct09qBJPJO
+enoVjJlmvG+YLmtMVzAfZD3+e1lkGW7A3hGnpR0Q14E9sdoFLdVds7fTYwcsrkQoj+U6OrTS4Lrj
+sw55uOydl/gNO/LG2zqxQqk3JTD4KGo0y4CpfhZGBFvYztFSZ7V4oGBE4hvXtVOf1cByKlzChHSM
+l0Jv+jNdymw3it7dywhRib32E7e+Yg5V6VFmO1SZcQwkK0Z5bd26qbMfNbm+owR2I7UsOAM6gHJN
+77I9ZCTEp4WDc9bDl8GDKUx42YYsDv2QWkrVq34dOiwIUysn3C3zh4vJHxHCpf5wYDtu9qHWTbnS
+S9GeAyAoadcwXrMkphKqPH/CMUKnw2/c7pAWKhBpFdz0s45QRNJFdAqHiYhMIz2OQrNihStR9/k+
+nc+EbSNqpCoQK1bSA1JDNhGNHH1mKEmGEmTkXTpp+VqIeNiVsq9PLLxIq8nJp9uyquRO94J+30Kl
+tXHtVmOFhG00QlXy87yxCymMD4oXpOg/lv2E38Ku9+wC224mQSwuCmMMrhF7cTsHxqzKF96JhQXB
+AOedVXspRcIDEUbNjgGhgcnuw3TrJi8qthJn7HigPNO7SiFroh+UVPC7Ps+KbVNr4U2czPZ2Ij9b
+NhGzkN8oYO+SMg39ic5Odzc1E+EYhufgfPHBI81PojnsM5YYOwrv5rknKVDnuotQ1DEKsJdp4F1q
+rgAxVHmDOsxd3D4rp/HcPYhaAN1zYCo/1Y1j3lVFO4P+u6HdFtJQ60F47n4q6ZItvbgzh03l6hLE
+gCzEXeuFsl0yOo9q0zDaGjAJ3OGK2mpyrZy+Y5DLuEHVyHy2KDt45rpSw1FXWnIf34b2oVMUBVr6
+ZucmjQ6WhZiVIpLTYv+4a/zyGCdtsJY077YiAaC2jqRfk/6DDY9kXCDOVyMe6M+BGrMLKvDxPsYt
+/8LT6ZwuaF0YP4WoyhI+T1irsQKGuKRYSMM6IHtmk3lle6jJyF0P9GIrvJmcwcLGmHpap23jspgc
+1ZWfWGR20lkIqGIE8RnsTRIcY92FOzhigDvs3cm9JP7Av8IhiE8atslK6k5x4rHf2+VlelGnln6Q
+h0iSIq+n8We5sAoKIgxpgqfloU+zge65NwTo7KymvOyBL6wiEiDJd6c+uQlbUsZp4/vjrkoFwquE
+YunJYPTDWawJV18Q+BVcqNBPLrFqd7cD43IGin+IBfpB8OpMHhoxIlOR5J8YSDiRidmENgyaj40K
+cDwi9FRZx2Y0GW5IEwfF7rQUDwbgoHuEo+zzthbhWvOUFyxDWw7VqmwLccsiu9qZJWjOghU8OydL
+RigLgqE5C2pfsG7RffkTDaLwqOscbTXQ/d3XPYi4xCvuidaiRZQWA2l3VmlueMh0KH8SSDfvVXU6
+UPraFlUTnOr4iaOlr+cmb6DV3kRw9PZYchug0igO0913+/IYzMuwsY2oumm1Bs9R7Lt3oQqJ0hkx
+MJ04ImXu7KpIP2bXVZE8ChwTallrRzlUUd0Zl4mZRwdDb3hbIiDTtSAwAJhHwaRZeAc0ISSNDLPJ
+z4NKlKTBmhY99oqNC+EK/ToJlXauTPqCohmIKqLLf0BRaVz0GUCsLLhk/DprNIw+GrA3C0vhvo0R
+fDXGo7uSkR3cZnX6YZTjKtQTcYQ7t1zhiqmOWrMyPveRL6HRY0tqG99ehKV13tfhnlZgK0NXst8x
+ontMPJoMzyYxbjINnj+ly37QjwIVnrBvpguaEFEH3Qf+3Z4f0eb2bfNjiH9qEvRakGzPBepN7PWf
+C985IFOCVgtv7BbcnrvMw3E8kjXyvcKkMBHXUKkBRVUymbaJJaI1Ua/jtKqQeFSBZ2NUdupjq1Hj
+GryduZeaTfSxcrPySi9I3O0xLR3Vtu/TtgnQO/tGZe4myNABrNdO/OzJsTjmqWWUMhGNd2EwfZD0
+lvdbLQegpIdOe4Y/Nr9w6bKsSwLOFslkJQtlTpdTpx84JC0t87xjG6YTiTalvXmAwfnTFLkZ/gNt
+QG3Qkt1QTAQYmnGcHA31xLo1d2iRZ6jJq4rNaGg4kl098uFmZm6TqN3tR13vrzzkF802xKF5rim9
+vaV+q46NsBi2Q9hXW4WLf5OgG1+yHTQOnNQfjwojqI+RH2AfNd3Ouag6uz1IQgdnlBicLw6JI1CO
+pQ6aHaqZrUCu0ZFLgfcW0cYzJ/tGI9Yc6bVKEc5Ii/6ciPer0GSdXQuP9W9ifzTMUK7Hrpv20jy0
+NyY+qxxlTpOd1VasH5uF1q51WRTrrPfc3TjazQfNH4xNSw7yl2wAV5SVo3cywF9Asp7Q6mR3dycG
+A9VGnfT1UVpgRG5A4e9brrIOeyIoqBdk2bBNyW79LPQ8Wo+JxXZ5HGfcLnoAeL9Y2KtYJJ9pQKUb
++O/Baa5B4GdLkq71KMA0oHr/C0wL7ZSSp7FWeGHPAAAZp9DXyo3NKnWX+hqx5DZeNKx/yb4fmZ8V
+sOQtWgI0WEMf3sVB5YLhdMdzlGY8SIRhU1+NOuO6dLlzg1H4ewS4JNRPRHURjLZGvEvCCSkCRvR4
+LI7cgtZ5ODk0ZhjPDrVQg4Sem+24wjoEMt7Hv6mEV52kUit496ceZAJeYvgdQTypFQ3eYol3kvg7
+UpV1CnQjwYv6HA6SlAQ8sKIin1B2K3juZJKpbLqJabPuxSiXjvBjil08lNpBZIzhWtq5WNMQ6w/G
+Kej3KDPXBJCwes2AMO3gpk5XA2VahrEqP5/monNbjMO6FHF16aGW2Cg32LJFjw9gRczxOJ6xRZjR
+8uziXGH92aF61lruCDGbTuMsJSCWfacoKC7mqoF4OzgfxmoCgZeFASRMEwAtIUFzWhTJjx0zIays
+wcsXTWAEH4m4dC9sDQfdAnCm2ijHiU/g/YMiwJveAxrp5V6Ov7L6f6Vq821PyRSW86rR7fS6us6f
+O9084+v/epSruu+FtFxPGJZAdvoU04PXzdYdbFM0j9CxWvZTuap8b+l4nlzXFPS2hAE957GjJO33
+xPKiZHU9Q+cXHOfPdJQs40VDybQFpCB0sWhD8eJ57gu9KgK2UBelBk5aOWymLCIbxjW8Np5JWUnK
+3Jqt7Zn2oDB6kR8F66Fpka06jZtcm4ND55U3lpZ2WkZwNemgEoOE1b3ymbgFvRQ3m/lmBIQHe7YP
+i34Zu6rUF/ZYk2OXp/H4hR5RMyN1kdRXkszOpRbRt16iy0P8ORqZOLG0QD+gI9KSouGbM8cAulGz
+DnrSrPHl1oTJRZ5TnxmRlBUAB1xX7BnYxzHusN5kxSDMj56dIYEX0QxxzuxPk2iYwQiV9XexXdm3
+DZEvZ3OA9TXR62g0RhwunEQVcQ8gbcAdTSJ7ODP7ZqJIoQQL3sjV2lnT43BplbA6lokVe/uRwLtu
+VaEQR1VWdVa1VEZX10tbm6LrMSzoPiS+jzUmDBEHbluoGrTgs8m7xhpMo19mYT6zEwYWmq3VVayI
+Rzit+A7GXeCMLHndIO0J5POz+lOeZw3RS7Xn7KGYTS5wa9SXVJGiaoVYQaJRM9VhoRqAReh7TZBs
+Qe3cKPJeP6HnYYHrUXhkG1XwrVc2IhyQ5U5zALkuPwr6yPlpcvQJZUUm05M6ZUpZlkXeXzlmgfMt
+m1iSgPWIT/tSsf3xVHkedaMgZzHqICDpXpg1E4KUBHe1l6j+UiNy7pYjWohHjMj6kOYx+V6dP3Xu
+qm9TfdyUYYOSrmSzfoN9oryjsRBRIEf7CmJ9wh/mEO8eE9A6eCWUWwi+Y71kWG4vSaW2nIWqPKtf
+zYWBn2BJmPVeFHuw8ZBSfnZGQLe4OPzrCnZRBN4Gcd8mRXZ2biPdu6a/P3wO1cjWCZlKd4z0IzuO
+zTmnPHRLXwI4nnysLBBP4K75hMkuplz1rPx117lhWUzGkaLt46+SsUw1Hj7XPRQiS8go0KfphJ1N
+e0xOHlY4V9lXuvAoD9r0Cw8FScQHeFFZOEcpGqKphns94qLCV58VVFoko/6ZbiOWW7QaqNHFGDXW
+hW268BjMxOs28dTrAROjqjfmFHjnEVyYHUWjATdQ4W3Z1WWEn7rIcBmt8nopWL6Ciujx69MmSbpz
+jchwuCyuqK9q0Vf2Wk0D7T0N0zrHdNj/USqHkAWFU68IrAn6L27p1j7awBkfTPvWXKf60I+bCa6R
+taiQv0CbVZCrWb6qxN22VkaM4RB3k1yhw4HV7QftFcpUUolF0RsoOX3KKQuIA8jnXSNVIDsS0dxi
+sqtzUPIIUouWL5EMANyJG4vyFnv/dkq6LavzcGLXMRqHg6PyszgJiVSlB0qUNoRRBFZ4WK8NviI6
+lqjedJSmlEFzvUDAU/UI3pfY+cimNw1m2BWFQh6lKqbAC4imj61Vgm8Rl39eBvbS8+3ws6a8+opI
+FfajXZzftE1l2cCvIBWwBqRQgrBRA5dKR9tGIxXVzkVG/gMrYUNWBzFgJgKD3QyWl9601HtckpqX
+iO1phtaJYX2OIwUeHOquVs2y32bDbs4E8xBCT9vZTq9/iGIL9J+YmrGBSdnbP2VgSE5LU5Co1npu
+dQRAOY5WsEjTj4ibNYZyCOQ/gzrLWF+QKERB10C5pXBORuuy6ght6Aot/AKgpxIbnHRwLMdySCCq
+lVq9lAQxEHXpJJB1jWAE8DMEs5RJYJhaILc3z/3SxWNroZe7pYftXXQyRc/U1xWB6xlGMUYzCbGX
+oY5nQkhj0BHs9eYe1xpYLKkjBjxQkfGEmFlA/J1ka3wc9Lhl+29RzVoSPUCOiKMP8aeiJ6F9Ybaw
+vaiSgTlAMNrfiZyeh4qJbSdKSodaKtq+hHYv2CMGowW5IWAZPMGUE0QgoKKbmxkhzBY4riUMhaCa
+aZszUcvGNWjDeAjae7JYJtDOBWY43ASGRjvJVuUFYszQBm+vwwzvLJeMQuEwRi+g9OJm0tqm+Fg3
+Ifo/QoVm+X8C02ANVz09ZzjuzP1cT0W2DUaDZ5skiWNvYGG5CjzaVTFsDoN0FwfIt1n4UbmlPkIF
+uoNRehulpX3FypqkyLIFsLIIJGkvG+UNMtmnZat/8CxNmAfTRCDAjucDhinB04UkDknnwhRyzoaV
+Mb39vdqtaM3VUeJN7Fda80PAYpZ6Rw7WfQ+pYT/tkkan09Xw2K4oz5GSrgpebZh3eU3BunFm9Dn6
+LhiXeV9CpHCGck/0SUlNLK0TgiZNUJc7RcWwZ2GPrv2CaoV/7jM49QtDmFZ/AscNi2voqOzK7/Qx
+Xo2NwvieZmUQb0RU05+J/MbeYeqmqiJGj3KI1fgTpAy99h2SJ3T2HebUkgg5KiM+bwujJogXJHGM
+YQvMGeU2SDOrCb+Ku457h41NBDmVyIK6tKuVxPZbroMmGup1BSU038vNQbYbYeuTt6BrC92bnU/X
+LEZwZTqRdhbBepbR8Psh0O0vaL4LDda4ocK1QeXG5dE0xgvHoaq3Dwa5bbeRYI6qMqPyd1mSE7KK
+rEFcYgHUkbmWNO3Y5/VAyQLqCphEYL9RTqeaPTYivemrwb/0KcDRvQ08mkrj0AO0HXqH3EhvLA9U
+VBqfaQ3PIcHCMz/DHaaQXjW6ty1ZLOAPSOI821EP8s/xsxYdVRBZByto+4R66FOpE2uTlLx61ITT
+JYHmBAgAHmcAdNlqn9aAD1M4ZoZPzuGc5DvL3OUiKulhLA0kjx8E5bKbFHYvaQKpk9tLkMlutfSr
+QZ3CbqN9q/oEo4Qu6zDZKCOzL5jJWMw1tXROQ98iBbl0Ic4h6yV067hwhLoc4hTPhRvYAPhknZJi
+VZDPh9/FEOWwkpglUKcEZbO2M0K81inOjZM09LtPZt4G8N5VCMleG5xb30iQ0Nay4kFRpqVpNA+S
+BqIjMVKQTqaeHPMQA8YHRCqC4QCceoy+fVSfOxwOhEfEOdP9ODF703EWBICAnjGirRM5GC6MZAg/
+uj5ESfh/k80Ag2uIoGmSGnu2kDjUl5UsKehqHiU11olT5i6LzjdWsd0nF3YdNxR/25Seg5XrVb+K
+Bd4nipFsC9FkQepjqpYM92lbB1RTmSjsjZ6E2QedPHeDJx2c2v7QZKP+sNf7IYwCXdsTFgWoDaxX
+lqXPljZPIBB5QV8A+0S/1RzxQve1tdIRXG911X1VKf7wKPqMA/0NefF4GKRzbHhcyer9uawtbwin
+i2iGzzaOXeNRh+8C+iSKdO9ladfiuDTbbBOWDnigwR/QP+jeGcZa8/SJKvA7UAsAI6+ex3w7nsAm
+TLRhDUogqv7Ql1FEO9XWMebX0qGkyCCJ2sgg8yYD/mz1Ili/fvTv3Wzb0T0X96Lp0op7fnR7MpzR
+ypj3W8+L1g06OBritXqQhP7wZs9f2ct7/fQoL9CslYqAhjhttHIDOtlWaY9rEbTdRlG3Wb1+QXI+
+4xfHgpxho4t0DCSS1osrIvvFD1HWRSsKQDzc7cArz4hZJXI/UkZ51UJb0/cUGNUrijTDqm+gqDmp
+yvRt0uvmUUFCqbOQfkLhCJ7UTp+kdtdmunFVqIS1r8ZajAT02PEwZDAW/dmnnyW1YJBnMeI683b7
++RcSdx2ujdgjqUciz7PciHZnhKvz9bv0zdc+HwWcr2053CfkU8+PQqOHHq2rxavClLxerpFtkBRa
+i9eP8s3XzlEkgBzJ6sUiUeDFox3QMBmRPcYrrSNbNQyFuYkoJu4GXwwHrx9qPuFn3zqHsngvDFc4
+gl3XXHN48haxehZCRFGyKusm+DLhPL3EL1BuSkhhQPOUth94dH5eP+j3rs9yDWOGxczHf3F9lM0s
+O4BXu8KGU+ICoEpby5ysGY1s5T9/KNuAxOHZ0jKR/T6/PovCMfUGHot+MpoTeCjZUnUuaasJkPHX
+D/Xts4GLmFF4Fh5T8zFfPBtiKqOxIAF6VfST2np1+nNl2PnvjDvffl88D7rJk84CfH5Gnl9PbZDJ
+Ys4cwsJ0xg8tezakL2Z46Gp5TZJeQZb8BDTnd76w713a06O+uDTfHpEthX60MvRu2uFXabaq7uTu
+9Rs4v6LPn0Ws2FCKqKMh6GYie35t1jDz9ag10LFqAaskLZsaB9NCZhbygJA3nzpO7xs7M2x81OO/
+SsxPHw7yY0ISk5rOoV2UCDCp2My/HD2GqS40bRiY1GwbxE4rk8OkYQv8F46Cvhzn+YzG0l9eYNyy
+zgKGtnJk120MxsWNPm8mXz/KtzM0F+MxEiI5x0JnzTb+p++0ckhrZNdKmJ5iJQtkVAUOayiMRMh5
+JbFrhsKuiU8Ij1JNEAUDNCJFGnlxQkMHh175O2c0P5Qvv1gu26B2yWSJd+L5CaG1NssSPcjKn0qT
+kIxyOsutKF3hR0X07LWd9ztP0nfeEimEp5uGJQX+jhdzGS0VU+ucPp5r9wAcG52ugqMpdyc8h/15
+XLiHKDDr7Hdezm/HNYchW9BClryfungxrjWahRWx7OJVQJVpY+XxRCcRTfuCeq20f+dhul9ovbir
+khEAsThDAvrpF4sDD5eS42HzWSmnBblEABRSy1q7KC3hrDokJgElN53oiFrJAQ7w5B3z5CvwNOxh
+tzD4/A21Kn97//T9nwTrfT3p2WKyZl3ajGftXTWe39Vt2jzAAIM7Nf/rKQC45lL9tV966mT59oO+
+MjMux+LuP/5xfcteACD1Nz0MyfvKaPDrkPXrSd2f8WufkV5zYe0tH65Jh2QAJp6Z4v/w8493KbvQ
+x3833fcWAwyPqMEkxQ/vIUd8cpe+Pf2Hm/X6Jf6R33ntEu7uv5sZqDfjB998G3TvPWFLNreBaXL+
+4cV4dhuM98ARbH7nf/k2fFEtAbM8j0BA82cglT94D158wJNHQQe+cv8zu5KeXrxlvGdk5MeZFyr8
+PBzq3+gZkJ4r+cbe+CoY7y0DpAsz4MNlvnwG7Pc00bBmMW7e/7AW+fd6FeRsbXvrbTDEe1YBrBS5
+vGdPgf5esvBm2c+eaf7593sKoIc+fCcPm+W/NiDK9/NujRFAfv2an98G03jPQomElYdX4k8NiH/g
+jfl1illCC7m9n1yiOxgB385BP/qFx3H323//Op7eD5q/MVTvf2+eah4O/TCwzn/+57OZ537If/KP
+j1PA0//+9fq+PfJ3z+nxL3fRXXVdfQnH+6sdv57lAzDqP79Ud09HObJrHv/43dnx1xHg1Q9NrwN1
+XT9+0Hw/2LHy5Px2ed9Mu3/sg7PrSeUvPtnU/4ZTXlyHz82tD0v0t57w5u6We5+++97ywtNnMcFb
+j7Cui1/+RaSHendxjY7s8QMf7rk547XeeoStin75r+dfprznB7/1g49mAUj4y38/O2ksu3/HSR9d
+c0cwW+DCfXfLvWnTxxsx3xlWW3Pi09sv4NeDPH7Yw6czjT/+xV9/i9DHPFfHSEu/50Dfr8ze9LnX
+v/zr5vrxDO9Pmc3R3/B+nt5V+XV20355/pWi0vkb7vZ5xFd5927/Or+LqucHeJiX3vp1zgfY8khy
+EB6ZY1U1z4bGefJn8/j3HuXlg/mwwHjrMeah4Prdkk0USRTPv+iHPc2bD8Bb++70GrLN4w25f4oe
+Volv/nAiFKLi2b1nUYT1/833/lJ94c6gxHj8qPmsDYOE+ce/+Ouv1Y+57W98X4/4Cut3W+aR6Pl5
+P+zL3nq3T3+IjHzjeZ//OITvzZ/8Ko3ijZ/+qi7xjZ+9vHs5qHuGPVdWf+/5+97K79cqwbfrwcfd
+//f+2/O17vwbX1JO65//AwAA//8=</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -12208,7 +12316,7 @@
         <cdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B28C3A-95A6-BC3D-C9BF-CEBD44FEBCDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E2A385-3CFE-1B4B-D045-ACA0A2EDD4FD}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -13222,6 +13330,72 @@
             <a:t>-- Colunas: loja, vendas (#)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>    sto.store_name AS loja, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>	COUNT(fun.paid_date) AS "Vendas (#)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>FROM sales.funnel AS fun </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LEFT JOIN sales.stores AS sto </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>     ON fun.store_id = sto.store_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'	 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>GROUP BY loja</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ORDER BY "Vendas (#)" DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>LIMIT 5;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -13678,7 +13852,7 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -13715,7 +13889,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13793,7 +13967,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
@@ -13840,8 +14014,12 @@
       <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>18</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -13881,8 +14059,12 @@
       <c r="N5" s="1">
         <v>248</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -13922,8 +14104,12 @@
       <c r="N6" s="1">
         <v>237</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -13963,8 +14149,12 @@
       <c r="N7" s="1">
         <v>193</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -14004,8 +14194,12 @@
       <c r="N8" s="1">
         <v>136</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -14335,7 +14529,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>

--- a/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
+++ b/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\Project\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB275AF-42AF-4823-856D-DCEEDBDA326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB4431-B557-479C-9E93-703864B2E4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>mês</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>loja</t>
-  </si>
-  <si>
-    <t>dia_semana</t>
-  </si>
-  <si>
-    <t>dia da semana</t>
-  </si>
-  <si>
-    <t>visitas (#)</t>
   </si>
   <si>
     <t>1 - Receita, leads, conversão e ticket médio mês a mês</t>
@@ -157,6 +148,27 @@
   </si>
   <si>
     <t>NILFA CID SILVANDRO LTDA</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>sábado</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2607,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>visitas (#)</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2665,13 +2677,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$T$4:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>segunda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>terça</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>quarta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>quinta</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sexta</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sábado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2679,6 +2708,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3592,2096 +3639,2060 @@
             <cx:regionLabelLayout val="none"/>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HvZct24luWvOPzcdAIEQAA3bt4HkEezZFuy5eGFIUtKgAM4AARJ8Hf6U/rHeh87nWUd+9qVFR0d
-UXUiHLaEQ2LY09prwf+8X/9x3z7euWerbTv/j/v19+dmmoZ//PabvzeP9s6/sNW9633/x/Tivre/
-9X/8Ud0//vbg7paq07+lCNPf7s2dmx7X5//6J7xNP/YX/f3dVPXd6/Do4vWjD+3kfzL2w6Fn933o
-pv3jGt70+3Pl7rbTi+fP7h5s1RWVn1x1P+Hfn1+fPX/22E3VFN/E4fH350/Gnz/77fDl3y3kWQtr
-ncIDPJuk6QuJhEAIp/LL5/mztu/013FKXmCZcSJT9OVDvk5+dWfhBddV/+zh8dnZXfdYuf7r2I8W
-9nlZdw8P7tF72NPnv79//slmvuz1B8dStc+fVb7PvxxY3u+3oq4/7/23pwb51z8PfgGncfCbb2x2
-eHS/GvrPmuzm1c9O5u+ajLxghMhM7s22/+ADk2UvslSITKA/LSq+Tv7FZDf/53/3z17dhfa/YK5v
-nz0w1X6P/wNMdXn89bR+5MR/01RYvpBYZBRSxo9NRV5IwjL4DvkyfhBdl1V3558dP7q7yv9sWT+O
-radPH5hrv8//Aea6yX92Ln/TXCl/waQUYC746/PnILLEC0axSBH7sblu7rrp7ll+N905MNzPFvZj
-gx0+f2Cy/V7/m5lsn6i/rVVPlv93axVGL8jnD0qf2oWRF1/KE8++hBGMf5n1S8bbV9Kfr+TH9vj6
-3JNVfynM/90q0PXN1yP5f5DWCHqBiGSphMryLVhg+EWKM0lg8Id22IOFY3fXAWB46J/dhAPneOLu
-X6DVD/HCwSuePAaQAXb6/9Vg/x5O/IW8CkgJu8+Q7RtE8fPRr1Dk4NEn0fRk51/te/rw+/OUCwy2
-+QsK7l/yJCJ+DNu+efTxzk8ADyl6ITOUplxmGUGCSfr82fL4ZYi+EEKSFBFOGGGYZc+fdb2bzB5V
-ohc8Aw8BiEIzShhjz5/5PnwZIy9IxjIiOEklhlSb/YWiX/Vt1H3318H8+fOzLthXfdVN/vfnMP/w
-5Vv7xWYMSc6JgArKESIpZ7Dr4f7uGoA6fBn/rxiGueYjG3PZeLYbzbwVosw2KH5/Hc4PZoHlPpmF
-8TTjGKWYEJzuS8DTWbKpSkvT0i1PyESOMMVGWeyqwui4FT+f6nBDMBVPob5IjrngNOVPp2pFmq3p
-rLe8DKM572XXHbU9adXPZ9m/5dtj289CU0zBQoDu4fN0FopjY7nHMZ+0iS/dmvIzN7c+RzG1L+vB
-2rciTTEgvr95ipJnlEsKBZSCCzydtI+OOD/QNe+TadjN2Dk108m+xlPSnv58qhQw8OEGoZLjNEMw
-WYoP/WLYMrdJnsScd3Mn86pp/VvGtsYqFoMQFyWf+R+4Gfz7TlhilGB+uYyWD4viVeMTpbfavmrr
-WN6yqZt61cuGN2pzovfFaLP0dfQGd7vg+cAUcdUg1IDE+qVJ+dKj/MDxMATRwT4IgMcMC46pJPDn
-6ZnRPqm7ifM1XxYUSjXjLWbvDenJ9NbpRl9jMXutjGfjddMsPb3AltTVccbmtT6idTbfuWbY7rWX
-WhRj7NrLbSrXqqgHkrlfONU+Cp46FWR+8CkqRQa+yw7sm4TGVggPa17rrTnLGpKqZOnsB08qlqpl
-mMVZHNJSddW87n5u7+8DlIChEaVyH6OCAAD4Ng0k45gsES9r7ibxcdxm+3bCAb1s+hDyvz1TilKW
-ZVQQgTJxsEntmZ0qmW55t9ZZowwiZdHHehrURuPjz+f6PhcQylPIcFlKeYYRerorzdFq+2EDJ15j
-u5vc+oDwqIEe+FlU4v1bDswmIUmnWIh9m5/tV/FNCtVNHEm9hTkvE1OqdRaTqq0mqtXRnlVh63e8
-Ldtdimp6KYloH5mN+BdZD3+fkKCjhU4og+wHdWOPLL5dRNzmRffjNOeTGJJF2Q2V5ywZw9G28ebI
-llld2FJnu4AXoqo06c5og4xVC13JR2JEliPn+5NRdPbc9DoZ1VQ6djHhTgy/cPMfWGWfMxkXTEBs
-in3q+ea8LDOW9G0ZcqCQglojhfVZTk5+bpYfzcIRhqpLhKQZ33v8N7PoZU47E+s5X009qaGvcc76
-iH5x7t+nFwr1WzDMU8IowQd7aSJp+CTJklfL0F221OOiStyoFt+OhQ1refTzXZHPkfjU2yiFpMwz
-hvEeWRzED1olb+jqUN6Mg7Y5kU0zKpqN/pbErq92NfZpptK+dTwn6zS+MaEdZ0UZgfTXBCneEWPW
-sKtDZj5lvjayWMKIPmxJh0oVt3Vd8gbX4RYyQXI9rdK9S8NQwwOjDyeNDPQxhrnNlG06aY9Ku7Ve
-yYilyznN3KKggPm+KCVqXzVhrZgaOz98SPooTB7n2b+B8riaHA09ejfO7dKoVszVTYJacd31mRhz
-bqZwasuFGhX6Ml7zVoqhcGPI3qwejVNetSYGZdo6SZUNEz22m6ZE+XmehuPZLkuTI1HKoDzu5g9p
-h6RVdWy7c1QPUG2qhrNYjGMKrm1WgOk5YWJ47ybvb7vK+iqndehi4bOJ1sfL0m2XJC6+UQOBr40L
-t1GJxC5UpeWqzwOr20TVZvPhnYwRjbuMJ/WHrOtnnA8jW29lq1ladJWg123k+A86kFIX0gbkCzfJ
-7Va3brH5vLVMFzHrojvTHUU3OKnwsNsSM5b5AHgiVWlYZqy6ZZy1QpUVr5t5mTc4QR0eXEO2Wa3S
-Yl6EbcZXnamdVtIM04eRD8OkGpEEd+6yOfFHjgTTX2gdHYVUPKH6tMdD1oecUttWb/tyRIkyGSF1
-HqZuHOFhIo+TTUekOsK2WtUlJn2OSIfPpm5Dm4oDX0+nrl0yhbCLl5IuiB6VEy91Xo0soh2re0R3
-syPx3nAeUZ60Q1zy2s5NXfhmib2aV4NxvvSmew3hzd0VjjLUVpEmWUkxZzFOd7Rpsu5V3faCRlXR
-4FjOWjoup7Ib1+y8mcYyvcjcuF6UYU6WfFigoqps3rZRldbodlexxM9FrLiQOc86UeflVnUu91tZ
-v2Vo80ZtVc9lUYWp9xAWdVsrWTPzCcoXJsWKZpqCw5XdcFR6OYTdUobsXVNmEGvzOLg7N5fu09Sw
-JSo3GgjJxSz8Nni54YvgovnkVzYUs6/bmwx1+KbfxgEAMRL0AZByX6nSTT3apdiIK7FsEs60nbce
-0pnenNJYrFyRLaALLGUKv5YaXaFp6AbFvUbiKEHdAP8uHfgmXrdMFppCYKhGju2musjkq6GrybTb
-NkOyY+gHxG6bHOBmIaorT+v+vdiG+JDa2oLnuBjv7EhrrETTJEk+d062ahOiv23bCr8b07HRBcl4
-ZXdzxdo116m1dbGuzJ2taKnQVRc9OetnNMd90h87ZWIz1kXQpnlNaxmbI4Bl9WvfpyPrcrOO48Xe
-Yv1RrDRKriJrm+pM8MVWeSLJ1O30EiPgUdJMDJxR2pdDn20ih0w3aNV1iIMDt2jVqmaovEsiIW8t
-IiaogYtsytMRGwTAdaIyBwWhf7lCTMwKoGHY9UMPp6AB77W5rPjQ5H1GE6b8NjbHFNSL+7U246Lk
-SptNBQj9V66zS6+4LPnLsUmrLdctt+hEdJQvedClXF+Nlatus1qY6WjlbDNndtbDCXRvwim7LjgU
-tXHry5oISG/ZNJHtaIWGb83bdeU3wtX1eD5p12RqSmkgqnbpWBZgJep3cgvZOR0DtAe4Q/MbG7iP
-+SIWgLfcjqY9oi33uzg2XVYsibOv/KI1OLUdarez1VLeQor2a+7Xob0Mkx/uUjKBhiD6NNxEGgek
-BhrbWxxGOKUgJ6sVxcx+MrDvexRcXx4T4/v7USA2FgP0YEe1iaxUSGTtRxpXO+yMaZYpb5vZGRW7
-BgqnDGRrL6XbmFYYNBt35H1XclXzRV8FHrqww0PNrxNS4/sKh3I4ykxppYrOJQOsA3GjxhH3Wukm
-Ea902ifieJFWvhlnJ22OtpnVBQXgKRSjbKpVBlrOY2KJaxW8PrvqOcYfYrkuUMjE1MhfIN7vkYhI
-ASVITFIo55jux79BImlEvt3SyefZVumzuk+203Kd1l/M8n3zIFKW0j0QwZxBL/90lh6SpEnBgDlP
-QA1DyMvTNk3rEyAlkp2wbNFqWP18WiZ++zL1n7zMn13WF1Lhvh+iq7T5U53768d/XX6V/D6rQ//x
-+72+9x8/vZwf3RTc47PLu8E/Owrdw2fV7/CZ/cx/PQQT/7mSPQvz5IfvKKF/Q/p8ERT/zeB/khFi
-EpDWX33Bd4SQujPVX4z1Zx7o8wN/0kCEvwCGByFJMuB8oPUBH/hKA2UvGDT1jEObkkrov8BwX2kg
-oMsJAD2EkSCEU7QHe19pICyAzEWpQHu2kDHExd+hgQ77P8Q4xRmGNoYARwUN/1PvCW27SpOtiyJt
-MPm2DuLtOi1Lrmltbr45lz+d5aeM034qCR0gxymViB4Ac1ICP9CRFICidV5Bb0uL0Cb4F13ZYdDt
-N5Ry0CFgMykV/KDv3/p+dNAALIDLUl440g8XBDLBy5/vBe+j6ls0/nkaAXKigMhjgMmfnlu61LOr
-52RW08zcSb2O8WKqeLhiQbNjsybTrtYrU5NIB7U009ypOQR9ymoSc+gbyy+R+G/pjh+ZEbpACs0I
-dKJSHCSBSnTpNPVxUX1cW+Vp056viHdHVTvUl7/Y+o/mEnC4YE0ETS87aK73MLHmEewIKPNNaAaa
-9z053srmJKvYCevdx1AtHwMuTyta3nQsvF/7sojJsBun5hSgxK/6yu8acTBGhtheCgQWI4N27Kkx
-snLMGir0ukefkjzazq/NGZTp4HeiNt4Xyzh2zVFTbTa9xmsKKU2HpN91M8Xp7ufH8wP/y/aUL+R8
-TCB+Dywx4piauHcMM2XJaQMmu6CUhl/E0g9s8GSWgx2XbktDXZfQ3onUqTXr+0K7bShGU7fFf2VD
-EgI2BWYaKszTw3XOV2XXQkCFTZujVK7J0ZD2Uv0XZhFAFENjKwTODmgMqeeh3WoNTtXX9cel3/xV
-MifZ9c9nOayVe0fZZ1sB9BCwbYfsbUK4HmbbLqqpcA0N42C4igjrnaZ6ukBD1VxAzzuckbme3/79
-qUUKDgGYIs0oPdhgl0C7tFg5K6K1uVwxW+5WjZNT1lbslU3ktLM8y15liPNf5IbvPVIAbQCxATgE
-OF15kKqSRWcscXVUtaDjZd10/YmR3p/83f0ButubDgG3Qzg6IMYNGucMDdAgh3S4Rhm7m6l4U27Z
-2Vx7r5CeTjh15z+fc5/LnyZhAYeZSnBMaNa5ODjT2aBFj1MXlQRmFhoUDOj1Ug7b1J0MmFRZ7mk7
-mAKLKnA1+6YmChpIWd/+fBmHXBCkHuCXwbdAriEErpc8jRDmqJGygWWIDFZB1rKGNsKMu1YvOqeT
-G49/Pt/+fYfbpqAFYMyA9Ev3GtG3uDLiraQ6baEDlluTr8CdnAClkBTr0AwnyHZvDDQuJ0ES+Qsb
-f591BGYYyFtCKHgSPpjYbLSGPnmMqqRNkjeoT4qGenk01DH8Iusc0pr7M2UE5gJYKwGhHGQdM3TA
-tiRDVF3r6ybfStSg3ZhNMeZ26ugdrjecnawuWba/m4kAqVFQDoAYg9nxIUuZrAZh6A1TxVZJVOLE
-uBuarPlFUB7uD0on2A6st1dZ4MrRQQIXaYstGjRXoSzR9Spnn5c6nEbCZ4Xrfr2e+/gLZAQXZA4c
-Zz8p+A0IcQAbIQUeHCqeo42UtFKlC67bs0rMDvvczZA6Hm1I++Vqgvtvq+qBIFutGqd2LE8n3bXy
-TV1Gay997Wt8LYG5RYUWs+xParGY6aY102ahubdzUkTNuu6DYA2qGyWz0iYnq+bjct6na+nyvg18
-+dhNdE6RmgJ00a8ij1k95b2rtvEx8RLoAjWmfpCXsp+g53WOGHzW6IkEB2QOIuQl1ch3R951KatV
-udZjej5TIIEuUx6W7NL0PfScwVJwHbZVsMmKbBAcfSDZH6wVpssnPDG5q6c0SfNMj3AoXQ2Umppc
-ukyvdJ2M8cNggLQ5a2RFp51kbRkvaOeCviEgHVVKtlF2QMyNCVFGmCrumE7MkPtGL3dMlsA/IUo2
-rkDP2T7Yal0DEHiGxp3gYex2QMesaDfA4WSFFbrsnEq2YbsNKaQ1xcNs4Pwqnjjg16qRnGyN226Z
-a7flOF38RlWgsvokkwxIjzjF8WUfMjggt4z8YtqqdVCuBvUq35IkiHMJdM/HrWIc7UQlFppb2bHm
-Ol10M30COOQNKuqwmuUa9w1wRbsxtgFa826kMX7oqM2MOZJVUw5/jCiYU7KSNVwty8wCNPRx/DC7
-AWHV98J+XEZaPjRG9hRoVmtxsfeSSmG3hPtlm4B0S8ata4DMAvr2fOOpcapuKbtamfAjEDtGvE5Q
-bzbV64EOl6YsLZy3jMkRMFdaAOpZukQNA95atQrHdW67JPtj8B0FdilgPuaTTcIdWp28Ac0Wt7lD
-tASajYEKkfuFulr10PyAPLm022u4uWTrY96ZpINaUpf31eppr4Bk4aGwgys/1iOQMmetL6e3e95s
-KYKrGlyU85DcLtDY3LQTrcBelpJ3AzihViFWWKtq4Pp2LMsJmDoUmltdVcGANtN1LJ9SXS0XTYzL
-FbKROSXMzI9ZnBaktMXt28ywuc0nnpirkjlJFQjgaaeamoMVfbcn3YGTM/1u8snWHpNFxxuWtVjn
-6aCnN4LvE2gl+rVUlXXbu7Hi/WM/+9kWkH+zfrdS4WZlJSO3y9BMSJEO2dMVw7yqxxaOsZabvBxG
-R2yeDeDUqsVrB1kLVfxsm4fYKIrmAOxt65sAlZbLSiUMaXcs8QreuK3Bu5MeWEsL9uqB3yO0wlHR
-tpEPIiGVKYIhQHYD7T1ghbNmSfOmjPSy5s0gd0lFmipv1rHfFLUszAVo0+MHkozyvUhc63aJddUC
-ugvBblfSgXd56FBWKui07FtfbbTNgQJCk2KQH1wBbXc0hcy09hBAadNDj1YBo193YlmOqmxZjUJm
-YVJVyRbbnHpi+0uchPXWJKZ7aXHDgcdMJoeBTiShVf1mJ6JWU5qoBtGBHhLDtjzoEYc8sJLUoLUN
-3JwN9eBvLTgPPk58BD+v8Lwtu5DW9iT2S+hALmzYH7Zpg4VFibgpAGzAF1mJkx7ABenGQlcDuDgo
-BSXOcdQp8KVyM/Z17Cs2KezxXBdLmQ7r8chNBgJ3l83TLi4hs8pwYLBVRtyCdysJ7K5na2VOEbDg
-aw593Ho7zj0C46ZzOhUGz/NlK5ekPNJ1DxdFBr7Z26mxybt06ppFlbFsdbFuoQKtDUkgHWNtHeS/
-2WyZ4mIYXqXlTHXBAmoeugq4wGSy3UUsk9LnYzJrpCCp9CLvWb++WXxcHpfZi8vF29AXEc6ksMBf
-UahHmnxAvkJWzYCX111nu+xKBLHhHNUEdBvPm8TCzJN7D6ehGdxFyMAT2gWBgNTXw9QUHQjOY540
-OjDw+BLJvKNQK5TZrG93IsZ5yru0SxoVY90ilSQl0yeyFAHenhh/3DGv9ZWsJ3tFx6wOecZlT9SQ
-OHZtMhBMQWvrZKPKoAd3PG5JNCeoBGr+Ykw39z5jI2mPgq0i6N6tdb3y66gfglxTr0bdpXUufL2t
-yk9irY5BAcEg+IgVCpzHqJwLDVn0DbbgrUdMRmNU1c7TQ01YaFS/zuxlk2CjVQ9Joi0CapOqAPYB
-jsiDUgRFHU3m3YL7IPNUB26VIGwAtnmBdiVvJlLf4LRuHvFaizTvAxhbhWlxuECuite0GizNF8Ij
-LWiE1Hnisq17VfUTewsu39OcgvzZqHGwU7mDsAP1EG41TMUatG7yiMUANxkyAYMaLeajqSN7XDlO
-QAqZphqodOoMLuzWsHg+975hu2lwqQY1OqXtWZCRRAVVsnufusxuUC50Kk5AHXE4h4tR0/Ym+kS+
-gVxkSb5m1RBAld/kg54QuQfyIPGw37VsVAradK0cXMa7AuxQ8dylHn1aU9G8BrfnbFeyxY8nQIlB
-Fk66KfYnDiU+KDnX4BupDebabRb0B7g64iqVAqvwxgEZ/QiE0PZHRfcRtGm443Ls0jhB1FV1pgtY
-kH9NofQleQZ3jGKu+yxLT6Y2Sx+HMkp6lGZQKUGN0rZVDTX6QWSMZSAmhPJlGmzZHs2k43XuCYjN
-iuM1ezvZoe9VGMk6KgsrbhTQv/StdoCW8z6d0Mm8DrovoPSJq6WKGp9qsEl9xHyKjrMydMfUzFNy
-BE3Gek+qMSOvG7gkArEOCltSED3xTGFGIZ3TxLhBzSnJelgeX6EelGaFYtQmAlQjXspdz2J3VnVJ
-q6FyLovLRaB6PKuoJStUDABrKvKFUwX6E8hyHi3p28wRMqiBYfspHUTt827UcFx0aOzt1vW+U8Pc
-VXo3IpSUkA7GTu9MU9rhpQWCKz3SaNJLQZBvxjt4l1130tGsKhha5wpqk8b2yDks4ZVd231ak7QB
-ptwTlpyhPiwYAiUBPVjZ2ePp3eYiHFHZdf54yUy4A8k3voGrcnDPyS20dTnAP6kvx810y/FMWq7P
-QeYt6S6yTmdnCKilh2lIqckd3dAHafiiNqL7mM9JSVFeMxDp1QamZiCO4GXnV6tF7ho+nIe+y/6Q
-PbRWJ9gvXVVkIMB1gCa9Lo8sa7b3/UDIxZqx4VU/8BFo/WF1zQmqWcsKMyeyL0DnG3bIojIWHbFm
-2HlY9kfTe5meT2aqzhvUuPNqtZC+eSv4cAw1GQNmLCfxEtr3JU+lT0+WzsimWEmXvq3gstQAehOv
-3td0WF73GSQw4ExmdL95j63SySzuNhwNYArfkFsBlxFc4ad1Xgq4xgDiMzYmfQ2XELpFeTD/eTZr
-88Z3gJhVHDd3PiJjapUMm9/BZZZGqKpidlW0S1yal1DFTue60TfVnPHHckqmazO3/PW2lfjGidnm
-QFfTJs+qdQb7wJ2v9yVcwjnrZjw9glJsUzUtNQXgIpPtKglDC+q9Y6ZTPe3Mm9HI+daUdfexSjc8
-HZWZmaIyei4zSCM6u4Q9VB9DXOk7viYzXGpAy5YeZ6lP4nGUor+J41IJuBY2jK/KvocYzMAjwfcb
-2RV+G0Syg5odzqkf2MelqeQj8E/9XZqNgr2ES2gWsmWZ9G3hTOZPq3FolrPVrtPrGRJdl5dmMB9Z
-ufpBNTatrjcAGHADwFZQ8lkS31CBNAzVMZ0Aa/Z2gd3C/9kCcRyA59WSotmrBNS4WpkRsS2f5gFG
-gVpoWoVAUV2LxCbLG0ndegUXwZxVlqbQytBOQj8CaIy/9lVsKwUcLhpy3YQZtDe4ACBUnfEp7ghI
-31yV5VxD6WmchYQnQYWH7yfjp6pd4EbgBN+8q+NGzr101WM9z1EW0GfXo/IgcKOCdUbwfFz6BjQ6
-mbqbHkpgC4mH+Afbx/ZdSDz0FhkTHF4xjfQY2p8k5AnQ3tcTE8HmNixpk3cN0AZ5Uku49xE0QtdV
-NcPlU8Lr4aX2M6KF0L1pd0DI1/1Ow63FIRdlD8ip8p76E7O59YZXuLmmxKyPo0/FJQE1m+/4NM63
-dqhCmSPT2evQODir0EoNjWuTcpNXiRBnvJbgWSgB+kdBwxkNADDIskmg0eZhrgDsYECa90mSmvHC
-It6+m0bLU6is3n7C7Wakss7xOxINMseUaLBo73ryYUPY18cGYA4vlqbFAA4Ds3yXIDamUHZX5otp
-GAkQfKy+9ZpAEqxKuJlxkphqmY7Au7urmcGVn1OQNTgtbCXj8SrKslVDnbibFqL5DJCaJLskzWC5
-DjCALhYW25uYtXCugw/ztRZiqo7WBm4N50NVZZfQt5p7lzn/bvbpAAUB7kagwtJxGFVSpjOU2aQF
-J8fV7Aqpk/ZjlM0G6KXitYDLFrZ+aOcuw7lmvK0BqzteF8a1stpZ2ur1zNWkbnaV7kFhdoyOUPsx
-1yc2I7D9UZfz6wbuZ9a7Bu+RKAJZ5mMD4Vjtqi6Ln+DN2x2pWycVN1taqQXBnZu8HhLfHvP+/5J3
-ZstxI7u6fiLu4DzckqxRKskabMu6YdjtNud55tPvj1p91lZRFcVQ3561orttSxYqMwEkEvjxI4pz
-x2oE078PBYknKbdm2dhd2lbgjFI9fC5M3qDu4KfVX3mphrzRKVXnIAt4ABMrpKGy1UD+Bds+9jvD
-mcTGOKqkO7pbfSg9XqMp+AC8OFDVfSQYfmL7qhX9FJrB+C3EaVM5XSLGD3op6rz6hkz5YdayYO5L
-tTQ6YClBF9tar3vHEfCsBRomTXwnM3P+LSR9Gh/9QNAMtyhaU98MwuB/9etiuBl7wCiOGcStVG2b
-so3AY+XTqCRUC8IRs2+iuhtIOESFvx/qyPxhhJ75PbbM6kWp8uSRaj/JRVLkvJPiNmxCJ0nToHeC
-0Cp/93JPNBhWSZM4wZTpppONhP62InoK8XOUKaCizYHky1Dx2MstUScMH6rxhsxFX2/iyeoex0gW
-Hq0mVAe7qmueXQF4mhcdxMHfmkAQyiOrlwGt6cSjg2okX9o21KqND5zEdwbT77RNokr539kUqn88
-r5zREd1kBXaij919LEm9ZLe8yiZXmybhrilUEiqporY7mTfWYGtyCZjJJ6WTbTGfiFurrIXMjQhY
-IicfBNXf6dYkhuikF8q218tBwqtQ9r8D1fZFd6IYB3yS3NW4rVLRIrHAnS05PCTnCFL1BM3xhSEp
-ttxz+mB3fSWnO0mvrd9gWkrehY0h/xirWo42RdhFv7RCCyKeJUqQu5kahLUd6OBXlDj+2nucSQVS
-IbVHIA+S03W9o2rT1i+7PnE9r+9J2Yi+VR10vyon3qBD0JLwCrobKcv7CCVSq7+MXPB+Klo0PWDQ
-cjI/BvXXSTArxTYATfxQckIgck9yHdqlMHp/ROp43xV/jnSbUPHuBIF+AztJA4HbOzUl1yKtRfDf
-9NxuHvlvV9Wt6jRWmNmc3+HZb2pi9i21kv7HIORFZat1I/rsZgZ+Lcia6VAEefozIT75AsCRLEeg
-UTGzE09W7kwvBOXYSYPibbsia4ptw8trxOVGfuKO3MW3atO1fubIAZWlaNunuvb3W7r9/0eUw1/v
-G6Xf973MqJErGIezNrAZ5DB//z8QB9n8HxNUqmrqQKBFjeP9L8TBoEuTqqxMt4Qh8Rqev/QPxEH7
-H1m3wD6YdLNYFIx0EuT/D+GgKP9jAHIlW23oc9nRMv49wkHTJaDVFvIBhFNPUJflL0Xws0j20epS
-axLFmWhpr3Ztm6n50Z+0qFkB6p7n2GdxqqqYlH5NWVGpTs2J/3egn0IwvDZu8GlSXI/a7yGJ5yRl
-5oWC+oTnr6a/3p3EKqriTZ5Gec9khZpJb8hCnhhmQPSScsBcxeyxMRT9uQz1aLciRTyvIs59PDI1
-A2rrEsdMW8UCV8EfSaQXpIebw/32fu9ut7a9vTltt667PTn8/uTyb9d17D2/ck8324N94HtOJ357
-dF2+tnePfG1z5Jd89/ZwuHf3fPXEXz7wrY5z4KdtdzY/kh8/f8s25+8fnrf3hwM/zebH2Zv5y9vD
-1nnlW/gItjP/Cb/mNxvbdvbOHrl8Lz/xy+6eH3/juvyoV/7ksLE3G37ii3uyD4dn+7Bx+DubzcbZ
-OI4zf9uGv8/Pm3+Yc8svTqyET/Q4i9/tneO3zXH+1s3xYG+cO8fl16x6v8tZvMOn2272t46zPZy2
-8wfls+34m4/OT37qnm893j3t90/zNrFR8992T6fUnsU+Ofzx9SOTV07MWlR70qiqVTGSHk7b+9fD
-9plFbZyfzv7oPK1IWvTafNCNpYk1dZXIDbqxdR9eft379r29+XHniPaKHGX+xP9X+PwoByf03ra4
-ninYz3I4opfD4yPn7LDfHMn+5uTeOM5KffkNxX9N4KJK50lNGU0IPLmvz2gL53T9jPBzK0uaD/Gd
-uyBiNrwuRMLDzfZmVujt6e3//Pf+dYtt3KOrp9fT9vV0X9oYzun1lbO0b3co1uFxd9jtdpvd7ta+
-Q8OOzs0edf5xe/umjre2c7fnvLE8zMJ1Hm4cG/vcHB+cmxu077hfqQ+vKsKiQEwpoPMi9st9cZ+x
-G3ZsTavfitvXjmTe0HcbNuHJMw0RN9vXe3+DWWLu97PBs22P/O9g7/jVbNW+zQqPf/aF09t/3P1+
-/6e3H57WVESbHey1D7RwwGljKlE6K+X94fl+6/zZH0J7u9vOm37a4uPcp9PsJjkYDmJj4wOd+bfu
-/fbZfT48ntyXHN+2s19ufm35ASzlfmfvnr90bJ+LF3k87NC7zRE9L+zN3c/IPj5x1K4r2+4DCvFq
-2V83d3iSrWvv3c0Dfuh4mh3MdVV9a0K7ts4FyiHOgeFLaCoO+2S/4HM7m8/9Y7e1H//jmVkeTvTG
-cW+2fIgNfvf6J1Ckc7zHR/tf3EGTMfZjP2/1C+79xC6cZr92enLvXefmcMBb71+xFpw1Hp9bYrfZ
-lLjX7ZY95+rZz7eA+8LhbF/dw/09Dhu9uX/0bfs7WrTlTLglNkes8AWvfbTffNlhd7g/PP598O2/
-H+cf+uv5/jW0nyf7l28fcHb4oftHfvv332gjPn/v3D3hY/nvw/5p87T/4+Dy90/2M7fIYNu+vcNU
-v9/e3X2/O+43Xw/H/e+nB24K54HrwNlsnlz75y0X0f7hxn3CRO3N8XiLzz7u2XqXXX3bZlb+h+3m
-ckUid8v+xL18unH2mztM/e0bvz3xx7NTeHJvHl5eUETn98qJXPdeUAmcGyNF61wwuGK4JW/4B93d
-nVyuPEzfdtzjfy45Z0UP6GO4anLyzOPy3gfEnWF09HWxQbOin+6xf0xtljrf3qWNFdm/5rsed4ld
-HGy+Ee+wfZxvZQ6ag+dXj/yFg31HQLDlV/PfPRx2d/x3/8SmuUfn4S2wYVu3862JRd1huYe3cGF/
-PGKQs6pvZx28387uNLD3qBDbj7feuvjjm/kY3f3LiUjH3d+7/J3rBzDfDv9nk7SCE8+asgQwjDZr
-MFfz1985Q7okeIe2GbUNWaCrpSk6B9xHs7ku5fyU/5FCvzqATxOYsryw/NyrC89U0tr2ssjaeC3t
-EFU2JK/+MJVuGFvC3XV5H1c1I5/FGUgGYJoHwvmqyG0ZmkVZ326peW8BKwzbIKH76fNSFI0Objr+
-dVkTF6uSWjOMKtEDeaAG8ncxLNNDUwxrXekf9w5IPjBteu3hR9GWYXNVJmLQGBZZF2o6BsXagdbH
-uNJATeTWSIeRVPbB8/WVnT9B5vMCcq4BKwJsqBGuL8IkK1OownVjZedlJh+pb2i0G8XRSSRF5H5a
-1AxqlyQgAvMTYbGJcpGKeUou1M4T8sKdlU1bcqTUgKM0WYEvXdhJHdQb4G620eBleK4VWkG3lpCl
-tL6HdXRoqartdZ5vt2quWPd9lRv760u7oIXv5S3BUmOTT7neIa/KpKnYp5JXCJuo08MVORdOSwd3
-bwHmY3kf0INeak5jSH0dPBEsDE4UTdHoNrQPvyp+V64Iu7SJYGBNqMtmVgpz/vo7h2GVlU6ReSxt
-f5Rjt+0q+S7Qdc/RVHN09cFUVxzUxcWZ9DLI2Bm93wtT7tTWI10sl7aUtCoIjEjehI1s2H44+Sv2
-fEmUDqCKFi5ZIlZYXAqSoGl0Cool/UFi4jZyot9RTpeB5PjVioGdh3xvBqa/F7UwsG4yiqqWWJU2
-5fdBYPg7E0z/N0NS1FtqUeW3ymxfPq+N70V+2MhQoL4rsZGBmDpq5WlbiO/8FXO+pPM62EdKy6oC
-VNg8Vw/yr0FF12llF6HVfonzAqSWmSkrzRMXpaDsGPPc/2IuogZP81TKbkZp5zWwLmXI9W3Y5fpK
-yuKSqoOrVElKSZYBfv18LZVl0HRX6hQh6AnQHdNK4mOip96ftKiDZwt/1awY10UNBMtJlws/EYTs
-ucRICJIq1BU66MmX7ZKu/UEi85dcysbm88pgQNsA8wAuF1DCuSAahwK/13AZgScYTp/WpqsmUrNi
-UIvX76zmJHUs6BrgsJkvkoXHDQRw04lGGbBUyA/XGU179C6Sqy4Kf5f1M/ZF13aeF8c7RWt6wS67
-rLUnkfL3Z9erYzpUWmWNvn6CnvP1WmHKw7LjlpEyABMPWa0G9SFQ2nQNxC7NZnQeUCFJJ9ahC0HT
-pGXoMdS+GUhDXoHaCOKjmMjdtiwL5TnvqpOvCxSj6iLfVHEOzhv5zjDGgcMZgCa1Du0olCuh0EdP
-A/hZwiItsqjg6xdm34/ER0IHvKMQTfgbet9K6fFvel9xe9GntyisOv2xbhsK5p/dcySDTFbfuIo+
-hEejrAxpK3FTDApFy4pCmTMpbbZyshfX907KQsXGrrAmv8Rp86zr6AhOqISWnrBLVTCt1o886stP
-uzjWxQGzcTMzkbXw3bQRZwoRZWkro1nRTzyoDlw62crufXQ+M2idhiRQeYDXZ4qn9/dslsteXBsN
-zfO+pT/m5lhSKKd+K7ZJ9KsJq2l7/bQu7SMqO7O4adjJ0iN4cQ6PGwUtW48AG7pdaQo3sif6jmmm
-9Umm4A4SyycKXFnnmtzFOvXWp1s7pyabpFl1E/V5TjWnnU5RK1Q3rampjhhH0or7u7S5c7Qp0mVF
-t98bzP1dEEOPYlomVcbmhpL20gDNbDcy8Kxdn1kizA6Z0Hy/vr0fPbs1FyTmXkwia2sZC7aK38/o
-PypRXp25egmOVEmjDnzY8Pmwk1CaCIaWFrrrNG1hEbE6TXGvq4UNZjPZiPHUbodG+3wwbcHGRUBC
-IAgro7o4N0qoea7KY2ELEDftlFhNZ1Txg1jGmp1U4op2frzwz6XNWvTuwHpf1utBx1uJYQJuVQmN
-WHc8uZrGFc2Y45Nz901PFxD2WTvoyFnSjWHHMIQEU2EnnVgfA7g6dnmWisc81cxNYejd89ALoPhS
-0kj9500B8j6qVXOPGZHuYpFGPJgTMEpwH0JjPSWlJt9DjNbC36GVhxy0ZGQXgaetrPiCZs4Mw9wQ
-MsRx+two/H5reZPojSL1hKKSB7+BAjdDIUWgK8RO+LyvhhjsLbrWeaYs247MAtCy6s+ojiDvbnTY
-AA6p0mjg+yyAjJ7RUHmHKmZlWy8cKSkO8g4EInPX6eLurwLAswCa8NetLvt2EgK26sO8Pmq50t4N
-ah4BkrXAE4fg/a5b/Qe1nS9dOqNp3YccS37L/L5TW40SdVGWeBSQt4Uti5myJRfTrfTTfjhBpHC9
-wicH4o9IdRE1Vt4AIHtCZ6ewkQAFt9Hk8sRN9gpYdliu/1u2/fIfS7jSgk0OAlmEprwA6WyCRPBc
-W2I1VENtBoABTqM/pGyF6bUT5GSt5fDimmgp58jIDOhLJxaCKjF7sS3Qyhg6nWJUb0RQ7YeSboAV
-33JJFHww8CzQxU4P3sJfNr2X0eyTIqoEqULaQ3Ah/voR5OK4Et5fUgd4GzEBCfZESAbPN69MQSwO
-ckFbjSqGm0og1g162vw+fUTzNcPVyObR7Ll4xta+AX4uDHFhGqBtUYeQpsxTc8WWL6yFgHrO5yHD
-hE7yfC1YkWT6iZfTmz6CB9ct4VfXWtmn3+SWqJChpNWWK4Z7ZuGdDBn+EWEGkKpl622bGC6MmN5a
-h3TISh3m4oLeSZq//s5Ws5ye+mmktdzSu2+mkSmbTIYx5PrZzLfi2fXCckhNzr4Pn0t5/1yI1Axl
-ms+9GJKei7clXf9PqdLnB8vXVHqV+mHYXRcoyZckzi2uNFxKSF1o91QmUdKXSFR9iw2EuMYdsix2
-PKsDvRNoXrDPhs7fjKFm7TKxlP8Io3CsNdiJaFKKH69/nEubzEHqb42ZEnCK8/UHIoU3c0BrYiN4
-NVpBgDdU71byfJeEwKgAcR8d/ejNQmf0sp/CutBycGqVHDpjH+mNW4tWoa/YwKXTnCk1cfAWvsOa
-Pcs7lQFoTUvIiHJmUQb1ImRIIGKFraR1+6yBAPPze2eCkrBM2NAMTPxcWjvU+pB2OcxMjebdxN1Y
-Hgo8qPsvpJDsoFefO0tfJrWNxKiU0ccbRnVa3YL+SjeDpoSfPyK2jQcU3pCDWu4cHeQCTZHBHKMa
-wV3SW6ojhVrw2TQR2B+R7ANug3eN+VY6f3c+5tQJjTDrfhwq6SkdB9ktvMxc8bcfsxyzGLBBmkEd
-hVfbwnOk+pRrYmoA6Wy98FYYTXhqy+SYzy1gutjBwaU9FoLooeuGd0Ou+6hbRbFyt8ynv/As2Deo
-afJhdFgvg4CJlkqr8ROCAL2TpU0zBHX2RR00sbvV2r6npaW3kvBQdZa8lqK9YAa8BMBh0bqhEWIt
-zEDIA01sUysHzhcpsROI+uj2RXirqL7qtLXHvz+to1w8MvlnhjGw6Quf1so0j8BSiU8LAuC4tVJt
-jXRas4T5Y5/vqMSRkh1Dg94GBZzbG/lmf6gMjlUPQt+h1yE/jNlkHFTPClZU6OMOIsqE7oN3tyGL
-y8cUTey6WGnsYB5rIQ3QeVKatghu5KtFo8nvoE97b8XO5z1arg7Lm7OMuC+YLM5XF8S0nfilktNK
-kwquapXat7Ltp19laySuJGXyL1Igw00B4e0+pcPp9foRflRXSSF5Au8CwDMJr3YuPs1AmnY9bZ9g
-qX030Y3fsE6+ahnJqdLKwMWraxHlx1thlsiDlUoaGVZlYaV1H0ahLJW5nQkyD9aybfeYSrZykh8e
-GxYsXeRuMQRoByh6nK9LjhoQcDmkxRWI+MkxszB8KacxVd2q8NQvZdxNIXyIAfkiI0noeLy+rRd0
-VoNRh+crbRt41sWpQuBixBmlbRvAfLnVIJhtHMuTgue8rqBjvC7sguOjTMIzGYJccii8B84Xq8hC
-rPaNiOHr9Rf8YvwsebT9dGqVgOKtA+0ppoeotwevr+kf8DzI2YS6Lr8GlQrb4PVPc2HnqcWCzzQJ
-rWfA6PmHkROm+Ex0gNhxGWCuXdv86nVi+QzeUzsZvfhUm9/g8A0+fZWxCZTQyZqB1YRB6VyuCC5Z
-Kws0WRvVJIfV21OmndVJYb2y3ZfO9o2LmiwSaewl+1WaZZEH6jS3/br1vnZjpBgbyFO9GwDwrbG7
-vpuXhFmkrMg+Aq1X3gAU767ORpXlQGjobZ7Iqh8Lmj7v+swQYNHM++froi44P30WMTeMGxT6lPMN
-lDxVG42MdRmR4f2OGmn8ajZGt4thUNxTzAy+X5d3YWnk50Eca2QDYJtZPGETVQjTdszx67lhugIA
-eaeCvoDGjc8XLy30kYkA2rw0MsUL3Qj1ufmhiXJYbtUKzsOhhUlXmzLlIMkZecDrC7vgU01iKnX2
-cvRfvZUm3p1ZNGR64rcQEEg0HDleHtQ0xZUU/SDmrOXfdJ104q7krll5OV2SS6oRkfAHAiRZWB49
-vlIiKwZy+4zszdCG6h3UhfT/ZGHwFWb0/NbsAmEluLtwjIATCAFgtyNlJ85ff7fazujUtBF8XF1D
-hsDLsPIiLnPHMGp9xbVc0FBzJtoDlE3GGED6uahJ6Vuj69Pc9uppcpKW9r1R78x9W3n0yme+sJJk
-ubQ0ntRz6YRcMY/Fc3n0jPrlYEINkteqfpCFSXbpSM9p3QuTFacya+AiDIB7HDpA9pCFLZMFql7K
-jT/SZST6YXIHqcXkRqoWbK9r5kUp3LuaTD8LEyMWt72Y0oyra3iTMkpoMvFE8wYqhP7TeTB41KG3
-IgQ14MQx5qfwO42oA8pu+lggJdEGwwGFnox7NaKm5o70bK+RKF3SCrJT8zuGoOIDGbkoTnrVQv6K
-AjZPXTM9pDm0rjrxlG2UUblyUJekzePigE+RIuZdd764IqsjXSkw7mqEhz4LK2ULTYxxEIehuJn6
-qV25AC4cGR6ZLDSN58hckrbFhlz0Aw0Bdt/RGWZPgShDIJBL3loUcUHZETEnxcjPquI85uT9qQ0F
-Iz0aevOgv++MdG4qbF0jhkOX/j6verquiBd2kU2kLAlAwbIoTZ8L8wa4RxrfhP/CCrTM5eOUf2WV
-CtOsJ5DEJeuvBp/3jvCmkSklJqEyvLy2J+hshmCAdCXqQs+JBfrIZS8kSwu5qupVgz0MUu9eX+al
-PSWo1ub085xnmrfhnSUETSQUqQDNh1EnR5lK4iZJFZ+ue3ktub4mab4b3knSCyBhIIJosm+bsDvg
-qptkk41xVzD4o+Aory/swlVjGXNRdI5NuFMWC6PZ0UwCqNntZpia3UQD85dJ9yy31OpyIwzWeDTK
-0Pv+L4QyVuMNfsRraSG0Sq1eCk0lo9eYTQyBgXxNR/1roGfVVtRLZdvXgboi88LzDMdPVA02FciC
-utjX2pzyOlKqzOalJNl+kB2tYki+j14QMThTSV+1VKxcTRCrg9xDpXB9xR9j6bkihAsloqbnamn8
-opobg5LQptcag/TQyjDTJUHl/xS8sj1NpjB3nJf1SSjqlZtvtr/z62hWVyyFOJqEwvI6gtTLgj4s
-y2xPBjREOcPf0LsrP1xf3kcvwKsT+kYQrzM77vJ+7YysDUM5IGHjtcGrT4ds4MLVnmdb1Rvy1wbW
-qp/XJX7c0PmdS0oNciCZkuzC7wRwSQViRQTBBBP6scsw075Y7RT7dkVJZaspGYQzmS92tld40Rpi
-4ZL0tygeog1jjrPPjbQTcjGUoGW3xaIIEviPMEy713Kaca0eCnY7zLypd4tBLOI9yWLp7+ur/+gk
-FO4QevQoSSgymdJz+TrVCMJknIQ8xMqBf37GhQoHWWCa209LIkVKZogyzluC/VwSbwfZmhJuycyz
-jMzNJhMSfZgVhWardzNt03VxH62UWVo8I4gLOVPSCufiavhcoqGBYkSXk/I3F4gb91HsSrFHBq7J
-8p2fQjVV9NBkRKOifrsu/aOxIJ1UOu2vIpygS6LYptX1uIXyHKr6KrphBINoa1Emf9okZykmRX4q
-PcBLF88lLMQEod0TIfaCdYxG9Y6+bOHwL5YCCzlWD9KTsQOLjQTnJ4BIYyP7qfgCIN2DdkwUuzUc
-2AXLh0BMJlUJafZMN3ouh9qplvbwKdg+7NKuBQkTLGOpfwDrNxzhJRA+HZICNhPfWCjpIv2ABqt9
-eczL+YgEIVI2SWcmdxp5r03qD+qX61t4SRdBXcLrPScswaSfLy2NQvhxwpE73+jrgxiVqkNLa+rK
-Y58ciroSjyW19getioof9MAVK6ZwwccQxrGlZJ0Awy9xwUxY6IB9EHwz14TZKiUZxS+qmRjkMQej
-epZlQesg0Q/LZzVkcsjK4j/GBURYtK9S7CEDDo/1+eIhxi/grISMT5py8QfWEup2JmOMTsvMjhqY
-Yxw/0kmv/QuHg2CwBRwybmeZ+2/CsC79jkfAKJW1I/AJD505BS+S0cYrsevC3LE8xjSBKOQBgA8n
-sjtfo9fBGmKpY+iKfa25kpnUOynvohUPukzq/SNmnjfI+COc9kKPGKWYiqGizHPKin1jJa3LOAZh
-k4sQT5V6Ld5RT8yOsSJ88QZv2JZUOx88JumsnOhCnT98jIVHUAuxZ1KFDAXJTJMyaEa1IzDsd7mR
-Km5sTZtcV2DkmwdnaAAZN9eNaXFjvUkH3AdaRSKTSgbnfK+rPMzDyGjhP/P99qiV+rgR/bbb5mG3
-Vma4dKzvRc0b8T6CnmBE09IudFsLwpJGSUxXHup85VgXju9tQUwPmCdazdADa2EgAlSgGjxigeuF
-ldEfRRCwnlOPRVwdlDGyxCejaLxPRnOzUFD0VPnoL5978Re7qDCqpdJymLN6L/BPDZSHboYGrwSr
-F5bGPMt5hIVEL46xDJWZ8JN4AgkmiCRGM71ppUSJ9w3ULvKeVv2a/h+jwONfV5CFw3lbGqXLGaWF
-bB4j56eWe4YHX6saupCIRczVi4qWuS3GVPeQYcWDMVhOAxlnv/Mhal2j/v2gMtTz0X1wEQDt8bWL
-K7nqGkMVvEx1tLLx92LljY4O6HVlXxceHToZAMNQY1NB1RVqwQspbRLSvJLL0OrA+9Y5ML/k91E5
-wKipD8IGrsX5cVJkW7hp/RXj/2B+iIbCfcbCyZRTlnNPLGY9eXEED58Eh6v0RdaKrvwWNlDtqjb4
-lrpZqUZdkoddcOcTywFVX9ggtNSJ7AmF7Iyx2tlJP5kulA+Jo7VT5V5XnAuiyN1bpPABN2GHCy9e
-0M1VxcBp4OXqgo1XZhM0aY2GSyurlQP84EIZmMplzKBYHdZ9LqdzHY1ivYRBFTbUsRbzm4CBUzvB
-m1JHhkTosYGYBwqVNmKE1qDc9orWrxziB7ucxc+j+vQZuYOmnouXBcsiBg5kByU1Gf8FITZT3khM
-i9Adl7AcPlzf2Y9WwYhYatBcxNQ0wUmcyyv8IYZ4F7cmJ7G6j5Os25Rh0Kxs6sdVnUmRF1YBuZUl
-lLHCVDVBNBwfDlxGLIG6kwLroesUbcXPXBJHdnYGZtNEwfrOF6XBpluE5kz/aBRiFm0LtRrDwAm0
-hHErNhOiRjnbjE0SqtvP7+bb4BlyqlRJlMVuBqQawe/LgqOYuf4jiCljwqn5+FkhMJ1wNZDRoQKE
-xZ+vLoGZDXImUXVGlvPDEnO4k4asWMnAfVQMmh9EnQzcPPkYbMS5FNjiPL+PrMiVZao+mhnmkAKH
-0uGza0HKnCOiJEpiapmaqnOlD+Dqi9xClYnMaHfdhmK9pg8f3Qf0dQCogMLREsqokvO1kKr3RqU0
-I1fomHgXBEzJC6Fi3w8exfrrC/pwxc2IJmKqmcSeRqHlFVflc4dtGMZuSZvYX1Pcps+a5pfbMtIG
-tzZz4eiTRF3R90vrAwnBjGLSs8hfrK+a2GC/ZBejMCgpGQNjr2XoogdB6lcs+ZIoLIr7hfcKeZGF
-WmhJ0IW0fVHBmZTmfqaQcvLOlH6oAAw/bUxz5x4YJDLqc1pvoefiVIZj0ZqxW/RTvrPq5E+l6GvQ
-g4/nhT5QjgDzP1+bS39bKxKsQXS1ooDG+LXNp8mdBDW4pee1PokBo9mySajWamMfjetc6sJPePrI
-XMYAYnQFLup9V4TNLq87eX9dFz/GIhQ1yaBxbdJ+Tn3zXO21YYTFC65vVzDb8Esat4yMNIbMSdVC
-vpGCyEttxtApezVovJ/XRV9aIJcYL1vGZJIDWSxwmOpCEIZ5brOuD67eyvFt3IhrmaSLUkhqwy5F
-tpcWssUCoxbEk6eFriF33VYp8hgMmbSW1/2o8rxpcITKzJpFLU4+l5IbzPaQmiByxXby2l3eF7W8
-naIqTvdlyvynFZc4q/W7bC7LQBzNKJBn8YriNXkurmMSaVky8sP1Jhg3/bicHjItTNyomnNVVttZ
-K2pywQTI+gHBmfPmhMeLswoaVRU6o49c0yDaaBqJmpUh5Oaeh0qz7cCU33ZGXaeb6ypyYVvxx4Bu
-kMogL3FxeI0wB18lvOk+l89WyyLG9IUtKV2YtOW1hvkLm0rwr1OSw/DED6kyKxNHuAOZflk3jZ/T
-ekboB5E4aCAn1K062MeMAE0/7ZZJNMLZNV9wUIQt5+Qwh7Kv67ZNIRVUJYfckves9w0TJZS8++v6
-Zl6wBApXmDmJYsq5SwRV0xpUAQIGDIChN5xO6jQngYb73wghE02egzaw5XNYlAofPF+TMs7B6zdB
-Jopu1lvTyg36QS9In3CNUfcjZzMDXc/1f+DxRnExyl36ysuHhLQ7DMdVvwtGSf9+fUEfHCT6rs0F
-MaJEWnmW6DYYKCumrKSlC9G+8uyBzGJ42jTS4OrmXiVaLjd3zxhltS/K+DXqme2zoiKUUD8cHe8n
-oJIEyDMShEb68/XynItp+IxLyKzFmB5wYVISOfnSJVMNg7ueqjW863rI3GdmcJoVA2zhsE5FRuNI
-lO68cmOFopRKT1MKee3PMAaLoR76hLHk3wIjI0Px3RvjKIv2htDVwu8sjQTPdIRQ9ISI0cxdFkcb
-Jp9AIeoEY9aVosvYvMaPdo0VVcozVOaWkDtMDOjn7w+mUmG6cZA2f6QG5urvkzzpyl2VGlX6u4zV
-pnXkeQTHJoKxEq7NSGoi+G2LKDyKRqRHFMeibnwZYKCkQJ61fhUZW1kNsxayeoYrWzYVNrM6icnM
-lBApQWJ+I70jqzc6fZTib6um7+lrzIOQAQ85LVFS5rAzsPN2icAUaT48czeORRWljUPlNuufpFHQ
-aZXMm8iDypwieexEY2NVXwdVqaL7KtcEZZ9YlkeCkLXk2o8yGZmS6iplPxjaHlpPf1I2cBeTi3ES
-MbFUY18FtdDvmhSola0zUJuhh3SmQK7L2IgSGuRxLDzRzQNPGR/zFhLg30mR6XK4a2AJ/F7WPGc7
-N6nyQrgDL5t7dw1TpQA7txJjFQKtq/moOsiSFwlCZRpaFUaXTE+FXoBptXxoIzb/Gc3dGloSPdQz
-B03qCorQWt81bzTq16KtkqB1SDJl7VOdRyRd7S6DkDfgKetZ0j5Q5GZ4hL+7iXlF+FPLgKkkEgU1
-shO5aqfv+mAk/tdQM7tS2MIe0HfJIWm7NngwgrboOoh9idoe+t7IGe3WMHZrjJy5KkuMHY76kH+v
-DLr1eXdlhdV8gwW39wY77LRJeDBrxU/+UrmxZYbICBAB1+7UVxGU8FEnau1Trgei9rc8Taofk5Su
-y0B0oAc3Ihif/zM/aWzLvGpc38p75te9H5eUtoVuTruziUjgJZiNC19KuxyDVLZMhaqZDfI2AEmO
-skrznX+mHoXmJHt//zPvKPL0mrYFYRwl8cVUx6mmX10dpqpz3s8t6uVCnb7+M7HI8prsmc7WIXGZ
-4vLf0USm2HiZ2+XhKJ6YrvDfGUSJAHqkcd9NFGIohq5+ayKznbZQZuOBnH+mBtVeLvnC/tK8oFQc
-oWiwjVicgIhkkZBV4o0CC25hMdILPs5+x8wdeJ8h1TZJA0KNH1MLuGkFujgtR4KHefqtBQJVLNcL
-alBAtpSPYq5ugQhBgmzXEkNaJDsSp6z/AcJSgIWcjnIvu5VlXwClCscPsGR7zE0//qmV1VCEjuGL
-k/ioBwXECXTtjJ4V2VMDRKa1cbBa+1cajRHzNWD6taoWauO4q+ujISWl2tzFuagl1aFqkqBodxW0
-237tdDwKmOJUKLqn3WZKpKctvEVhkAWHBm8dgZGWrAZ+ZPhrNEdWBYHB0mHbMxTjMCkMAuu/eok2
-tu0jo5HL2GK4j2X00tcKbnJsnNYzTYnmmqRgnIZmGoYbE9BQLW8Kf1IZfmONrbSp6xFKINcS+qj6
-kkblWO5LuDzCCERhM1OrW5rcM3Qnlal5bJto1P80RQghvyTGtfhqhHKdPzPzRyxB/QFWAnhIE2n+
-W1bwybbcES04/RB23Y2ow1r4PPJAbr+JTV4luyTxdfmmNuGicnBf4i+jSSE3CtuxOFQes4l6zZMg
-iOhLHx535uKddO9/STqv5chxZYt+ESJoQPdKlpH3LdMvDEmjpgEN6ECQX3+Xzn2f6e6qIoHM3Dv3
-8sr7hM2Dk9ck6h5dDVh71kbJFLzEAADUkXHTaD0oB2Vf3ofarCzuan+Q4t3zmX1/85kq/5084Imx
-AMtIyZl/FpKDS+j1luFDaPwzdmunuZ62Lg8O4UqZnqk68YZ3f/FiAd8DoIS+EYFKmidAHs1wA3st
-yB8I+rbbDeedft/BR5WvRUeo/Xe0V3H7WEObjh7nwdmTd7xAcMqnXlQRwBxttjO16kaAuO0wjR4H
-0eY/fTK54wO21ao92aKyyRePbM8zl7vYXR7H0Ou6/5Jc1iFLhSPfw7Hfzej/VNIwnU5FP3o81Twj
-jn0MfABC76Lb5vC52/ZhvypFLVnrlzZv1GtexLPTXch1Cqfo5ARjYd0LS6OQ22xf43r8Z+JtdX6M
-AsMOa3N25SKyaRbS+/JGkpx9tuc7G+6AWBwzNRkpSAVc1SQpq4Bdjb78daWOpT9YqNZbN3Q/0dI6
-RD338TD97t4X3px8wnh19GtEjnbFpdTzoJcpzrA9BO3Ub36AM8VdwPhxkMZ2PMexadg/R/cYbisR
-rH6KUYa4IMBVnOdYD6blo8UXOqbsUFVL6tWucjOFDwSPpdsLhCTbV9iKHFXJ+BWspmxf81W0/xWd
-JmN+kI0hinzR7qsrWBrPfJ5FPwOhMbbf07LHTxi8uLGT1intY9it9qLg/cpvVOlDiuP0Gd5jF+EX
-aLFRHxOmnqdm6+v/4N3O7YXurf+o1zV8ZOkUHMDvtfBRxO5o2XOcwqtuHcrlmUohZiRdBkkLG4hg
-izNhJvl8dKIccrvfJ2NwsU8Othbsvu1r70b8WNsuLsdxcwCN1XnppKUm7SDDiEcUQTA0TX2qwyC/
-obvZwGu1zf5ZCe7vSz17gzzqclqxYM9zexwHV53CeHPlSTpdcab5IDFEb0o7mNryoTzotuudzGAa
-P4yoF8sZqoX58PFiNtmQc8dkgTL8KMAgSAUyuFrnjJTvRV1OlYGIJQnBb44kxSWASSq7mkO1icle
-FURegB6tu+hCtSM0K7ZhiA13BNdQ6v7+VdnSewrPB4h3mY1uHwKesZ51MdkV5RPHnfc2+X1nUm9L
-pj+yjoo/QWHzfyXKzqM7En3CNyKEcyqrHh3JiUaH96GvkxWq+/QL9psbHd7ovLXqse934C6enGp9
-aXt2dE6LP3v2j2LLfDiQuU+ueR1MKzIQefVnstpbecy32Okz2If6/vd3YBK+qd5kc557XkaN0kcH
-uVOL4EvcWi6ROmoNjK7F+0zWoL0uSFW3B5zNFZ/BsbN/Bi02sFG+V/Xfnp+myqq1ESefre+Af22H
-pSgIdIftr1VeRrPTnmqAaR5Z87z/4O7jrkz92i1eRwUF+EIWZNOnEZUKFow6TkAauI2+V00Yl6fI
-q8mzSaYlnE9+PzlI+mBDE2gAE1ya0uDshdjmluSuE5UQHPel1U9rNLXBc6sK4uzXUNRz2tpIQwIo
-B2tvAzC6rFkXPnTBrlgj99Dze+q7YXe8i76o2+Cy9xuocy0h+lSX0QKuwmczCLxiNHOYTUT2N6cO
-XOS9h7Wq/4I5uKUi5sxMhxBk1KEsBv5YX0WJOprEUPGFURUUOMW76DoBQC3PccMZvsB16dSP2n27
-/oSErry3jeY+qcuq8g/dlCTgD/bC4bO4U5dRLUnSuFfsHle5HYNXL9im+KrL2QPISt8UT3tUdE6q
-cd5fW5NTXJp1hR9pdp14h7CXhc0InUqIXCxt9bANnvd3kkl5U4GakenswEziMEzqKutyw8G47q78
-M3rO9lf0Kk9SYeDfPXnLTFxBgMWhfVfjYJiNqWleujteS7hv+OG5+cK8csRDSV37si+CWBen96rr
-3g1AeIFa4b+bVK+KA0Dh2L/gpwrMaV/KdeJR7ZInw7pJfYSMO+dpgUZdXlSrGMKTwqqjUsMaU3TK
-55xx8C7yFvxCb913uYpfQxTbnPWJIeR0THyDGzQHb3fePeOQQRQURXsW1NP6raz9NdVxBKJvKhbO
-LpSNSLWAvhLdXozsuz4we/OaA/qRcS+HaHbZEBP0LLxfYSXMGVKprS86OIT6mlqFrk3xs9QXDBn4
-c5x6AWsyWckqPAss5RuyfvvjgY38r9T9+h/RL+UnBMvmpgvw5p18uvSHvV7US5eLxh4cHqj3Bajh
-dHaU372MSjicma27+6fIhnCTQidPxCGgoPDPoWtddek37fSCzh4Ue0a/T/cGT9h/Gtmx245sIOkD
-uKCQu0Bwa2XYeMnGyhsZVxSDHQ2qafzwAVWeYIqdZabkhEffGU8iGiP7p+6SWF3OUlEOz8aJjntj
-uIfSqer8+ajJqqvSUIjyoy7YnE8xrTntC8CDdTqYdsj9M0dxf4uJImfF199hcUVLEqZyr8kJwEiR
-/HNGz/5zZpH8m2RAZ2tqgL3Z4iwBomU8cZ9hsIPnI93Wg19Ce47v5Tcs0rrt8LmuK5suRem3Kp2S
-HXSaH9EDzYmrKJHF+CfOo/6r7TbhX/lsp59dJ4yrjHH2OJDDwRT4xOaK0pCucrwnZTm4r6bPDa9L
-vxd/w06vd+Eu889k3sTj4nvLYyKSVZ01FQ/2yTlgqzhqEZ2OVV0Pp1W2U3VMXDg1cD2r7XYdGuuc
-Grnar4g4UtgoYpu/a5+MBFJeOj885NaLzo0zGrhCqtg/J0caVuUhM9oLoyb/C1wUOOgEvuCn5vDY
-j9ES17de7Tn/4Kytd8DbNY/SMIWfpmjqlzIgIYOVxma6WsKCEilATDEwsDxpLhpMuNsBBFT7zw6O
-+AI9X3ucb9v2DBuPSJap35vyvq4GiWzamu7HbaZxy1YgOOq4Cdk0ODeb5Vq0FjaGD0n1XwE65O/m
-6+Jx4Qp/CKHrfpRzEEM/5Fv7joZ5vLbt4FLrd/zmKfkr1s0aJagDm6b8XduVE7YFR25gTug3l7tk
-pA1Pa6tmuqqt/G0T4qB6cL3WAj9xqoCJvEua0clMm1nSeqiC6Ixy6X6EswpCskkmcS/HgNfdY+0y
-YlBFDw/cz/Imy8hGDFhwEsSoTWJLjqtvWeFQ1vZX0F19eVo9GvujB1F4SWc5z+eo5rtOk7mdw6xf
-vF9e6hTxkAGMlPf5EJevOC+al9VbmAPR+C1T6utkcNKcBIYQ2l1sn1RTBD+mTxqIkdVUXNlS+PKY
-xBQxp9G28ZwpkDGMy3O3uHSHqJlP1ibJC3d6Xx1MUHXXNRve8yW8m/Bvb3xxa2uxByc3Lsu3goJ1
-uYqKMXkqk3yDlTMpdgwm3wZ5tpXDcIxdG6mLwZUd2CKp5X8xJD5MQF3eXMsdWK9cFz1nYzD9gry8
-Tazpxi9zhuPjrCcDJvM9L+xmbzgtgvaUeMoDeRTPazZgmaCc1QXNXc6H/6XJJts7Tbf/Eii/eFYj
-i75pNQ+BlxaCGuDgqc3511R1e8263+8RzvQqPI2m0lHGFs38AKwLfBk/ocsXsK9htrOWdU+mm2+z
-Uu9hl5pYhMOxoGwPYAtJ5zIwKx8zYQmCHMh2jaKU91l+o/DlfxwtpzeJnf4vMsF2DaYQiOhcNslb
-vJr+PyaBzcO46ParDnb/sudjjhkqOe2vRSUiLQPPPz64Nckv/W5qYv7eZeOJEvm8HnPHN17qynzg
-m+XMYA7iBdNTQ7gHzb6HK4LTMxoeoO9CsiPEt3av9SaCv2abgtsorMfPplLyzY+Q0FIo8POXmkid
-Sm3D/DObWjB2HHt146XjMsWfKMwUyUuZFDd7MNhf4rLb3wLycCpWq+xyo5eCIsVxF/ew5VHTs9Y1
-iDDd6Ds+BNasj7gKJf9uT7MSgnGjP0tdQ5vczGhpgVgrpfnfq3445+DWbvP4FwoSIsXO6VB68Isn
-OKjLkapp6zI57TVw2zx/8JZwhc9Lf7RnbfFbtQ3S9BddSB5hanQY9Vnhs7B/FY/b+OmZTb6EeyI5
-u8XePfbdHL8Fhe9ul4kq1Iue6/57xmJ9S3xEvwG7rRK4oKRgvDuWQWrqcQOz/F8N7hNILq6AvCQ2
-kyM2jB5t50Rvi69p5XARy9fSGK6Otd/Y+glHZZurGRTrdTPRJFP7+v1y8DtXvIMfJpaOniGnIY0l
-QU4TVctNu3fzlGrZDCblFQ+/hFgb0I7DSvBRTUecNYVS951PP8EcCE35DIy8vhl3ghLOuUjcy3hS
-0U/Ryu4K/zpVTGMoMVzIcS9MlqPhgA05XwFFibg8xIHGQN8wECMqk7352wqx6Xtt5iQ8zXPvnYLQ
-UNF3kEirzBvH6cMZ1uQhxNyH174jkiRVQQsAMiH78Ropsw+AIqrquWjVrDM9d15DIKuh9ooJjfLT
-GXLb85KIaM3aVfuA96Rrb2RcbAlX4Vw9xaTwRmmr5yo6+fHinviN9U7lxqpz603iA3MR6+4svXvT
-AcLjdAPWSq8XCpXoJRLrWF6RGsnlWFJWlylnkbhISseaM0DAKDqMQcyWelBwyEiGZVc5cLn7CaJ7
-ctxtqa5hdo8BDViw+Wkitum+WkNutS4qkDGbZewuqgih6AiQtXwPcr1/Dol1hgO/obpZ7OyBflon
-Hu4GGufbLJT+StpGFmBBt/4bkWG7raN1Lg/0zN3dbDfRPDhEMczFU6IZAh9s789QefKlGj9cWM2U
-HdUilzuZe0V4iLt42L7ULpwp7dTMWyBioOapQ6lOZzj5yj//GgBYca7G5DsMqhGi+jjt68eaL+4z
-7Ov+YjNOyYuzm+UdMmLyDVa4KU+x23WvBKfLt6UX9Zitvmg/nIpbN3XouP/s8AMJXQqT/uSOIU9p
-Ei5rcxTTksRHu+S6uhiZdU+p10l3vymahJoFVLR+DuXEeNEF6LtlPgPsBuyrim1KVGlvj3Fc94ox
-h98+K0twAtHpOxRzO5b2Y5Y1ZagXuV10bBv+MYfeDPzVNh6i6eDsm72leB7oZbdmG7KWiV51ZDsf
-3OKAJvQpNhPGxXez/44UNmcYHuMaHuHRg+9HsbEO25oBf++YTEXL7GRiszvk2E3Da+7RtP95W+QQ
-+8vvUHkXQbLqv0O+kHIKAH3wM2bMtDXb/+OuRdjrq0l6oiGi0wftSsIAx9E46rLNun0PHpZ6VTfG
-EWt3sMA3q6zYse1lpR0JkS/HWa8nz6PGwAFTYANudTsqBBrbPdXj4jn856a/c/2aum2rd6c97Ux9
-ZRbCkH5sG1wDqQXKysRNtdEdkXR+lM46XP5jId4uKcMQRx9CfmZ9aEcBW3TUSfFgNoJxUgYlyjkb
-XLvrIbCkc2ZBC/OOR8eTt02eT0+IKi29/dZ37u/x3XxWVi4c02Sr8b9XVNNgDV3z4u0yudeQOu0Z
-u379MHWF6x0CMiIe54TwRvK8ZxLfu3D1kKvccqEScCbPFaclYWT02pZ1gcejLgwE476r9lslFa1a
-wDUING1eAnvUuyC4UzT72lxXY+xejFrPJtXo/y8lT9WMs6aJS2YVsi84jCteqAqvTAF+c1I0omFQ
-nJfCj/cDwcQaKTOv5yKNCR3Ps3DJ7SdU3Nk5l3Spl8xU/fs+WsN/pZ/IhXOrmLds4gGK0qBpduek
-9kLthxGo48sawA1NXbfaJrIxZBMhwlRRm+lWY/jeyMayMaYLfwead48fVt2t5KcFGTrtOlDtr/Et
-ItH4B1Zk6yD4Mwohy3bdmfq54BjxgwDQzrZ8wj/qVtxNjSubL1CWO0NJmagX4MWBPraRSLZM0B88
-JLamcmK7aCxTMMg7c+atUZe577HXO1v01TQgmaE7RFSuY7ag8bX8kntPA2BlMGZBreVzAq9wT12W
-Lp+QfFxGGIO7UAgtQLZnFaNJbdGsH5aKkvdAHre6bFVJjWEKYYaDWUvz5eWb01DvrfqmhtboXnpz
-Ll7GXfqPeH/BagdznjBhdbpxPEIin273PmAAVhbB/Od/IgOs6UT/eMto70WXz68i74cGsPFQ/wS+
-4jrVxu5f6ybGe3/ryp+hJ8KD5sDP7/XWhRxBee+9mkaS12uYPl1EXu99wyWXQGwlzxi66L4cFtuN
-f6NOMJjfd0Pi1hKXDSvJRLmQ11YHR+45eY+CNj3Rqu4684tge8ckLf52KBNcZElpp7RZXFHfkla6
-k+sOJvVZb3G54fffwR5oLxp/RofMFqr18EcQ4uhkNKPxneetNZPe0U5/hG2prMt5cW6b+veksWWZ
-P3Zcn3O2zq65Rhxh+xYjcyTSvJrc8NYGuwyRZtrm0bob9S5/ZXfvWRESa2i47+LILE06RqHzNMRd
-PVxPeeRZBKbWBIciAtzKJIMYmItlkERlBSSsBAcg7ts/vqHfw4pSU2Waceqru5YMSxX5eGsaSMYe
-BdEkwQWXoMtcu80Rwr297UFnr0t0Sjpvu+HY8zvaD8r7NIxF/y8XrZRZZ8uBVtj4/VNtk2nN0Mur
-6ZTIjtAXz1bu40gJ4mQhLp+HifJ/5DiIS8Qn1kcWNuOtM1JkF5b0dxjYJlWcdawnmSraLiUbgT9x
-UNcybd1FthkPyfZullq8FG4NwHHbxvGzUznTWgNITqWLNfohJJr0e+TmuWfS7D6Q19t7DwNe+JyR
-XatAb/wqxLbu3PEtZ/LnnGt/Wx5aeLTtdR7O+54OvF7hiWXEoEhr8Rt4/Js1fGyniVrej6sEeOQ8
-iSrDYlt+dYrZLEuUIw2tGAHJAi5W5YPHNuxyHGcD4jOfkPgtVj6+382jqBgbJ3xUrlIDX3VBrdDj
-Bv1yFML0sZs4irOttjyxMfT1f7PvAKzfFjNd6zjkyoETOblZZAL7yRw8ktmECfkcEntbXlYSe/zv
-NUcepta9T/nXF8ztiKHx8oyx7v5eW+N+bKqJXfjnSlyz9N7/hNHK4JmQZ8JWayTgt6WJTJQ2TouG
-HxTRcNlOgj+5Hc1ASQu/NMgGFQf/0D0C1A5cBL9iMQT3tJMTbRah8c43sxPG4h2HmskU8qF3s42t
-86cRcvCOAl5hla0VKj9z5BwxPiqZ/x7Ikuuf1OpvXxYn1wcfCEILzUbTHSO2Q8JMDmaazyvZ6VcM
-fByIwjxCz1RLXXMo/Fw4WR/vwj9v7ux/OEFXveJSLf8uzGY/iPJ0y/MsTfs6AJH9Gfe+tClFj8PM
-H23uS4PFvbVJPKzjMTCJ+41xXO+pl9eEAECikOrSUc361oHuCq68ssvHw4wbhAeZxc5/vI92YHo4
-oBNXptko8XDeDMdQif/xyyt5PZE2gdxkO/mT+y2TALePcxDBa7ieomrHTVgtgSPoGHoxFbdFULd8
-ZpQBkVme1+3UL4vfZC2/3VXn9g5aMguZP0qv86PudopakU95kG2Mq/1j0AW2zrTT+M71njdjnhJM
-FHwIz6IIdUXszaeaBvYpUsLVWRIIsV1WY+m9YIclGcBxS2qDqP9FyM4u05nitw5IizzX903n64bD
-fe2eBUR1yS0N7SPdXR09OhNc9NMq5vZvpKmOsqpjWJ02ogi4z7xGv8yDDf5j54L5TKeWPkrHmX0c
-+S5JMnRv/W3z9hs1ykoACc6ZNpkiiO7x6mp1iLmH90M5xwOHkggW1usM6RCnAnhLc86bIaqvPY4P
-Js/lMLtHOJXVC9D1jXFPsIrq2ONLkozzPMbKeg73zNsW3MOu2tUre10h2HDyLKC6wo84hJ23zylX
-JBrHwk3zMxGgKw8oPu5VuLY5aPkuCa9CFQvLQH+1zyVf5avegZuntk6qPhOKsy8zpQdHW3T9oE+M
-hIqHqfzN52jW0H0VTrm8se/B69ct+YAY1Wo7HUoZTxLqrsaKIfPYu5xq3r9PfAIckDLqELo8n8NW
-UWbxcnbeqFO3YsRAuAnmSHITJ5rYKhxmuECt65+bmdw3boMoP0pLE5FKElNPnZlFfRNsIG/T2Dq2
-SgtDMlHWdAxUL+INCK0OhvKt40gp+RKi5bJ3KYkOMR4o+bSrZrnZpNNXN1Rn4c2qnag7B6YzVRYE
-LaYaKgemNa5r3PHQGk8wgNkLHp4yCPoPsy18kMGviseWpuvN0hOw4iN6Ag72WOd/VFzojW3KPcIG
-xNVRH5F6x2utKVNOLTN1lTV6GxfWZ/3xzl3W/ls0IqiurRcGF2xfL9+haYKj45XLcMfoHs1rZily
-41Aawn+Jaav/NrTVn4bp66vUIdaJXJPok/mqoHqbB0rzQ2W0vJ+xe+AQQ4MlR8lsFsnBSJVtHhHk
-hG6u42dU9xyCS8m0nJtkjsasVtXET7FGPPpzrDuZduUkXxOsR59l49pXZ4jiJW29zn52BES7h7o0
-4pF6YsehMvCPj+L2j5TL+Kps70D+Xlu3ZgcK3wnOMTlStGyFrog8Crud3m2fIMATAMOogfR4xlw6
-GuPUXaz8DNxZ/vGdaHmUggY1nWIzfXtO0VGP0ATpQ46sednyASnp8sW/rihJw6ypzNTjWSGzmrBP
-n2BaozFZ8Oq3+sxdWH5Fcg1moqW33SfnaajCg8QJUx1yvkA3w5Yb8a7mPAdZ5fkVtmUyw9DPNYat
-9PdMZmmFH1imI0ipmy5m3Ikip/QrAVPNf8qasceFvzf3XUPledxMoZG1kHfbQ1IbaU+2RtYebNgO
-2RYpySfL2RI97jkXDNp4bP9q5ahPGgL2uKtW7C+euzlsrYhhfZHFVj95m3EZGrkrKhzXR68z/Boo
-00089/dmzoe7Vnr+n7Gj039k7OTLbMB59Xdjs+6j6Lf2eQoVJTYO8BpPWJX7r2Ww9Wzgb5V/J5C5
-y4u+K4bP0vS/DkR6EJWuxLjN58XplEjNknBfiG2pkZMQE1/CEFNLXRJzma5DN/8YFi7+hrSgBfWG
-z/vpUyRQTaBxJcc+XKs5G6a9+OPOLmYijaLzS9QokSuCfuV7rlqip9Nl8dxH66/2sQVMphldyvoT
-Rx1NyDab/yzO4jYtp9+neJpk1V/sWnXvPYIwD3TS2CoTDAaguy9+maQMnRhF7aEqb8tZd1E2Sm/k
-Hl75n05DKZcStEfJcLxxxNZcyDbHODQVdn4EQ47Fov412qdSruWGH20R7/Tmzb0fMOrmm6/FvR7n
-4oF1GsJzc7eTl547MwMefy1KvHBBQECk6pf4EDFUe2WoqD+cYvWCY+Q0zGXNWLl3eCa7MGOvhMEV
-/VqIKl270ZZxzmLeoPTqHrcFPMxBDLDBqdyRkg+8Amx5FDj23kXpa3vwy825WAXyO2d4YT9jHeQv
-AVUM31Moli/X31H5WYivQMy4wUajLtby1c2rIL8iknW97wYSY068ChxsWPO4K/sADjIKrBkKKnd/
-ZN7U6pCrYuvHGyE5W9JoLmZ1mBs57KkIt/yefQvzZLx4/jJyluOFS2bIddcgxVO59TmypAw+meOt
-HH/RWFz0Phv2zGKr/uysA84eK4W+5qNOWBsiryyzjZWrn4rnh7+B/PbT5LThP/jyTXgUo+k+f48H
-ujQ0D3K8qSQuo9y2xBqil34M8eqy71D6RccNJWLGM8wo7pqR5QLsMWF+t0cNNL+dQRxehHLvzSHJ
-+0JTEsnqag86Jtg6x6fOAAP3x2kQm7pTSc/l2Q7t6vH4jP6VCtCcyLxx+oYeKlRPzmzr77Xfo78l
-fnAMmaXvvE37QFMUNKTuSFvitik8hx3DYnFyyvLQ+G88hfUNVvxvm0/NkPmdptqLKurzaI89EiG7
-xrmoPY2fye6InBzY9VAe65iSPTWCTjStkeswGyWrd4kpp4yPJN3BZQo74X92mOE4rXyu4bozzkU5
-DbwSDP6Th8nT/oNmAt0d8tVfPwaPW5OHT65fXgdqKK1VHV6bCe9X2iV99bpuyGXMpNbglh3slSfc
-eE55XDD2jWRDaUk3HylUjHB0nSt+uBGvhrLiRSW2wMj2a0DsA2hDZzOYigM37z5GlkjfV3/q7zqn
-sv5F3Wjn1Ak7yzOH66CyaO7nUuKaYCQICoh5QmOuVIf+6f4qiXjq4jRio9Rc2CRo0RvaKpw4gTyG
-vUBSWHQgJx952/iK94kfIR/xMc1BiPBh4lu1VtDMJp/x+C1LZUwPOqvCCK7MiD+XsQTTCu6Ncj4a
-HTX+CUoQI+168cf3vvbWn7XjDiKRC8X5UM/b8BwlrmhuMPpW1zWnRZtF629XhcbMPwK7TFWkEbXX
-Ozmk4pqtRWTsaF/rT1nK9QeNj791VJNKDsytmvh+lC0DYeiGO/0A+beorl0cjG/swengugz66g+m
-g3mm4DJ6wTJTCTwjllUWlY0aB9ZFwUhtumGddro1GM2XLGbctV9AR9RVeY/War0XHBb7F4WXwQ9v
-I5lPr3OhWAU5jkRwRZcCKf+TlO/13Ra+Xc5o8nF/SOiK8VgsgnRI+muG20W0i4+ESDRiu+IwuSsX
-lZS4wcqY4rrvnydkfIxVTuV8CewR3WGvVJAfMYckWKNoTduDnPAIoXT/vgBy2Qgr9LrYDFnMnRJS
-YUc4zVD6kpe5H+LHffFXB7Fy52OyoTyccdqut7uZdsZvOyfDAWFkeSowTS/oQ64amGnG6rUiHsE/
-LH0/kvqDC5AiU7Ubs+Ip4MgZXUXTH2MMcbGMzfOML0WUColB8Nig3xLjqPQe5RcDs+WKkCIK3Kx3
-PCRDJLguPBE7pslmIkotPjG5V9xNvoc0J7GRkxk37rTL3Wg8RCtfFM8Uj6s5liSoXhEm4zJhcToh
-aI4nHt/VOqQqDHW75anaON7RERn4XJIKTjON4STC27XX7megPMX+cEeMJmmrRtlD6xv5X7l3nIGi
-gkSTCr9lRpvUeIDThcP6aWyG5g/GRF8f6ertqynKtrwUFN5oG5X2H6PCI2HLuponcg672UU1dN3b
-leLmc6hN/ExccIL5CFJRfmySnZXO3ffmuzGuvL9l70XBoa6tc7kHRa/vx6QfH1cA0w7ejRgHe/9b
-2re5r8ZMOguuMCpyweZ1F05vXdnQ59bEgnLIY+LMD0zG5SPHARoSO2ZYcv2uEQLzm1geOKZ2k/m1
-wuOoaxKN1uF/94CcE5P2Tj/fcjSiE+Mjyt/ZxGguNpJV7QHDA/IgNp/hY2M/bjoMGN6GK5gpzr/C
-drF/dgQzvowxgctV4oTQIzlcRHx0V5/2k/Tz+b+28KaVgloVr2TsmsetHA03jA6Lz2Hetn9FhM3u
-pMZEfSVc0uMx5MVCiRjqeCCCpo7whW6UnBlPPGK3LAXvDVsMFH603uqbGX332euoWlOXaPhXVFxm
-NOs0b7d9vyafZL/g5kExDgZUgL3GsuyL+L+mbvevit6KT+U2eNqWNjIyq6s6mH/lvMBkThU1fyuy
-XYH2uDvr9pJJHapn9bvTMZkEs2jX7y3mE8fhxy+Q7a6mdfPm1Im8NeA9kKLEZVQX4zHWCbZr7hZw
-SnEh9yJDkB3uoI452yFyQucmKDpgA5W7Nv2Z+lG9DT2nMkUc1qPF0xz9GB7bb+ym9QN7rTM+w8pr
-xRFHeP4wcz6VGWW+S5tW9cuzh1f8j0a7eQlCdATJ7XjT9o3/VDe+7B6Hel2I2kkqs114sbHPUzlN
-xKDuo08MkG7m/Lz1fv20aH9i8rRuLK1szs60kdqF0NTdi1V8pEsS4bGSPe2inf6PvTNrqhvJ9v1X
-qah31dE83DjdD5L2AAYDNsbGLwqMseZ51qe/P+E6p9naO7Yu9XyjOzqi2oWTTGWuXLnWfyj1ypUb
-Ts3Gb8KB+Gj1VXaRqYPcQsftVdOitqoRHzSl4Y8D6DzPRTgVgoPWWo6iQSSN0Q8zBzixQyKj8647
-3jgAunCp/zSAm3tReRrwqaVZzCXzqbV7agCcbAQBA7yhEZMffTV49x6Z/k9EoeYy6zj0KoGAHHAD
-FUd5hA8C0iOFHvRYhgMXedVI1q5M+pguKwyhdD+A7/zEW6XA1DiSa+DzGuSgXppKyakTmIh2LMtJ
-AsKEIonredBkyCMN45baNNmmBivgQ1QBv3ND7CVNmgct1xPgGuVBHsvwx2CC7HWSxCDLhf1XlU4p
-mt5tFqngjMj8SXJpuwbxNldS/bOQygB5WkRDbmtBaianNL22t6G/gWYqDDG/j41w/G62uvRZp6El
-biRvEgU3sCyaE/hC+aETVympaSIo2Z1kNuYnnBvzR1GoNQBLee7LDvGQ8iHOcNkVlDQhg9dcKU/o
-yQP4BI6bXlQQr7qNhO574/D7iPcenOfLaepzMCIUUH/Wceg/ylTTQNSWQxrSiWWL2bKSCiNIwW7G
-XQJwAxwABP6rl42B6oJImmjDG2axA2HPTypg63LuPbpvJMdA8u1WQSdt41eN8bGJNGEgVCeSRu0v
-ir5VRRzeW15s3dI2pOLSe94kzAWuIbdNXZBFTDxU0v2RyPZE0sBTQwZlaTc5ZAcbYpX3Qw8oVWxr
-q4xUdwQLYYHzasZLddJTtC7E+YaJxDIJN2oXUJZNQHQoGyk1jZv53akRVNrpos5rv3K8tqO2h36T
-fFV3k/rFj4liNgKXIe5DPEu2ZlWQziDeXP3qIfxdhWXayG5XifTLQxNWASvNhnS0pvQTu5tG4RsE
-RL7xMCKJboaTdK8MBlItJbhLmdIYKRoOOrkM8SbOrLsm9ibN5rEekDR4ksSBEGXhSx8q0xcv7FoJ
-QPhcZ0YMrn1So1opnamnDuNMOFB4s67gSMONmtFtOha+AHyWZ7U9KoZ0DV2s+mhaPoBjQ0rJ7H3V
-aDCKsop+INLTnpfrkVbvNMS9twUoqvr7RKqtOyELUNGwLDr2H5Sup5tBO7x2PcJ+DcWCu/5CjlRL
-sOsGH+UmqwTeog1t9w2P1SyChhjl+Z08SsACwIzVkGg8kX4XHLl2Uw7BWLiVOEiqY05QoJ1BbNun
-TumFftO3lRRtrcCKOVOBpZNpAUCdgM/5fuRKlATDn4NPYWbTToLUOWkOAZ7EbIyBXFilHF6iP2al
-130XmrdaGCelq3RTAk0rB2N3A+WHpnYLT4HFKJX0pxRnUr0dg8kb3HGgZLX1AxJjV2IVK3ciiJNb
-RHSpWNikECSqQrL3KSwNcokS6wsBoGdHEjJyVl+SbMBMPYT38SlvRhReZhuAawwRmm9gZlWakHmt
-X5cafWdHmcYCaLFZRGgxqp4E8pbIZQs0Uj5KngTkZaCSChKvB5btJvCHfuZeMX7JEym6UUGlizNg
-kNox1ViDh2he/DK9jscfdV1qhVQPybgijYZNYyTidzK+vnF4omSkoF1l3kiFUko7TzWn777Qi9dQ
-TDvxA2Qy5WevScpcnEmAZ+Il5F9QGA4m+qNidgO5QJHA8CttQJsdgwMHEBAnyhgi8S7A9CB2clXk
-g3WiqN23dUVbuWx12ruxWFsXo+A3/a7ne3+euMGHvUo14yKienLXKB01JDTO2isAEdySOeiTj2QH
-XBeJWOedPdUUMXZmWFYUsGTYBJ+pSSakIHkng5fKYvNOT3PAsFw3/k2ZgCS2O1b5Kwj17mZ+6AHF
-ERP4YIKQ17fwJL3nuKCC7HTKwAtDHcwEmAiWKo9WMHKY/SIYDfBZCeWKNEJYd4ManvqcUGxDGVYu
-gvtAzRpevqJVPqIzpCcU2bLk2ZfKChSEF1NSgs2dFGDSs+JeykEAEGTBX6gamsd2WGNI7nKKx+/W
-qE8debwCFqSnVKuBwiFtBCetJp/UEC6DQxdK/6GZlXHHHVQr29zz6XOzdauN2PgVKX5VKIUzR+dx
-K0cUdzbR0FDG1swJYGRgpjczBnV0g6Ecrslcslrf+3S0x02gSmaJtFwpXNcdt+Y+znPlwqQmItsm
-AvM84fOhkG5qyIA/K0+cbvTQTBq7B1jR7puJ+tst3DMPbVPByFmbQNXyDS5ejXE1NXpSPPAuEB4E
-i8IobaBCBJ+vR2S5TV9Ij0k2qSI5IM+jZ8uPOsHm+QVG0ZMgTe2KEtT4VwPHUIuWi5VpBAmF0hg4
-W58iPACgcPwCurTDb8OCurRVCrg8dt6O+NCeZ1zPWgJvxQ0wD0D6E7kGEZEzqpALcncijZpVAvyh
-IazK34U29+w2LtudEffDrSAkiL0Kns+na1o3iVtpd374JeF7Hh6fVuj4JjK2dMEOudZwWKsG2Epq
-Q73iOZQAZW73IihBBVXb4oYehWVPmup/qIYEWPD5wZeuYpjLMbosinQdFX3WTzkcHZ8wXaN1l9mx
-x5W7qSSPg5RiCbiJeVWEwJqoovkws+mfh7yo4Ihu4gy0CUkMBe9Sb76t/EZL7vnyN1pIrAB49soq
-5XP4uUocpoXpRr4lO6RKDyWpMIGHXngFG22TNL2Gvpc57rKMCoDc+0DDR0oO4EmslZVaSgC8/loY
-GM6qt5JypCxWDkToVuVJnKU+5Va4cz7AjoRqZFzneu6eX4WlNsQ82qzwYczqpmBiFjIpRa9mWLyD
-BAEObP5QQ0MBHgddirRw0IYfmPzKKyI6p7YhknuSrs17UNIW0hcAJOs8runDQweUb3VgJqS5Eljc
-RhwuQM9ZuyKDu50r+vvsH2Z7Qx2ksT7vQMaXFjvQzGEggn+h3YcQHpQryr9h8SVVuQsuqATR2j6/
-tMcTPRxvsb9GXYCYUhQQDzOxn0VVx+uRcT+Ax1DAipeNW5pl+cnSEn97fuTjnc3IiM9oiBob+FHN
-v9kbgch61HIpVNnZOCSJlz7YVi7eIn+nVsvremISyLaBkUER53AUhg4Vq+REK73UXGoz9M1MpUua
-8v1nA7z1yr45PheobxM+6B7TEORrHg5nqpZnpQI7tWq4zRpKww4Vx6+Qa6T9+eU7PhMqOhsGTuS0
-e9D3nZf3zfJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGIaTYGxHZxMaLEC7tMW858
-EQj9szdS6LKaaK4kVkF8i1qjuaIzcmqHYJ2ApA9aXSIWdIdT7HGEUOncEo2rlveKNRV14RZG3WX/
-YCtiQYQmvKSqfLXFQCFgcjIK1nIqjRKsc2OBORrKlVFOrR9y5RLgKVxQwMQvpmOA040DRmlACOhQ
-C61pHwVytRmosdLBpxZ2fouc2oyWaIEeIC0jmi1OmJ5Xmj+a8xaROuuuzxAGcQbfN4RNm5DUrESS
-pUjRfNIsxRBZRRXViKVNSW61CTkwzONK8tOnkIYe+NAY6MpUXJl1NtsRC033cH6KJ8IXFwMiZBKx
-Epdn+XBNJ8+cFA2QqI2mAIxOyfB29Ui9VUmjbZl4JlUIRd2pCoDHleme+JqIwNJtRpOJ4KIuEpVO
-DvPALDnptdeajzLE64i7WOr2mJW1Wx9+9Ob8VE+chjkhw5pFkbiSlqGl7q0GjF1CLwt4qKuhbLlt
-BWXNkfzEVzRkFN10CZUipJ8X00Kuxo+y+cx5ciwNoN7jOtopdS2JW6mZ3xJSDSUqkNrIWpnfyZG5
-CKCwYRaIXvrhp/TA/Q8NbmA0SzrxG2yrmPpO7IU3I84YPwjtYF17mJzeSiA9cUoYTiS5QOsaeNv8
-e70JpBWMdwOCKesaF8NlnYndBiFY4c6igLIS0E5MEfU/Bf8STsrsFH44VJmI8tRrKVOE+ucKFciy
-Qavg3Yb0j+4KUMrfYslakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eLkBTevUct
-IB8WJhu43qCBeTjBCM455SQm6KEH5FoNMKa+1Nbk3o5Pwmy4IOKxqiH4pi8VAcXOxMSjxAZGQD/g
-Ju5j4HxB1K1kYidGmaXx+A/BEwX9RfRsoaukmWbRizaAiBZSpgHWCfSVXX9iFOwMkZZHQlEWET87
-XLFBDLqB7B2MBZiR9KZCWyd380pogpVtfmogEkrE7EXuOHbC4UA0lFQ/o3xqTz3CpGEqVw54xRXB
-4eOg+OooilwW7vBkP4vZyOQr/ZBR42S68SWxMxw3YQ38oxgg/W8gWBfj43u3HFq8eDWCUNdmZ5VF
-2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2uXo98q1/FJS9xq6RjmATGFV4y9dY0
-2sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuX5/BRPbBCmiIsZ
-lwyS/0cvb+TxIa2wkGOQhRB3c5oLeTO9f78jyUNdTFPmqGstdIatWofiDufAbhPRuzUH+E51FI8r
-5pXHaQGVKI2bxOCqhBG/OLueHqA2NatnKjjbAdRGlAXSTP8ZxL61s3oTCm7sD3Tw6ibdnV/GE1+O
-bAu5QA2rQolSyuFO6UIxLEv8SuxcV/1vMIC0bzDz1Hqb5Kh22HoMomh7fsjjawVfCpZybuRweS7v
-7KCXM6vHRNv2lGzaaYCyvicCDckrQeZ1futB4JXsvAwo554f+MSWMVH1NDmAJudvKTWL7SX5K3KD
-dhc0wsdIU1O7Lor+3Wks07OQvZThW6H4vbi/8mKAym+C+7ISM9tBa/TQeBMyg6OQJKm2skFPbR2u
-ZoqB84qCmTv8fq2CIxYwVZ6l5hDukPYCWpeEAqL0nhFdI0c4XmvU7HYKufX9+5fTYBkxGzHZPtq8
-td5kIkZI6drXNcD/YJluJSSfNjmSiitP1FMb1JB5EpNCarxUFykzkk+FguA8wGQ9NuwavMJ3ZUDU
-E/htuYcmUu/Pz+o4/SAu85JG55ZXD6H6cFYTaio5DEHYPWmgAY1UfVqSOt1ZoF4IZa1syZOz46U/
-ZyD8r7l476NOBTQUlQZUXDx4BLgD0zSpc2tI9nGqifWnCfbPWjXsxKCzUQpvH1aUe3xxO0wyUOVi
-gmsz4tpGnwoa1wgWPkfbxk9T993rCTQBuVLeqlwNyiLApH0M0xZpHWhRDQQjJ5yGMvkG/8soB1ji
-Yy+vvexevVEOa8KzbQqvK5N1JYVYfMIhtQJfpz1hW5y9dBN2jXjdD6iIWWGT7T2T9pEUlvUuAB2J
-D6BAi8r2R4OmYNrq7cr+PRF0LMRPiOuKToBf5phBDzoTh6gcfE3lbzDTBcbnoxZ/fpVPz/nNMPO2
-fnMYI71JOtHDAcebpkG3q3YW2MIuUtWcVLGaG3azcCH29NjMBNXaIqEdjXi5iTNPJK54VZ3aX3zx
-3+YKhIfFkc0RlPMMlSn74McdFcTqi1KVMbAw0b/sat5p5yd/aokpgHOhcH3Oxm6Hc1f1CX8KjSeR
-oSkl2muwiIwx7VdmdSIwkLbRDkEgX+FbzrN+s8Kgg9VkaHksIKNXPnqRTy+xlP0nzLfX8oGTE+Lh
-NauUg+8VFwuIQjIgAYmso8JI3PUqUIE0a4KVrOPkKBBLCDzUPwjihxOC2+QVMtapWAX7oblFqkht
-XZ5bsKDPf59TK4eFD/crxXcKEItcviLDNyG2MpDQiFsBdLpr5J1xV8Aa/vxPhkL82Zqza3zAD+eU
-1kPdWAIfqRia4sb0moAupwmUF0RRH335B4PheEUZjjxbWj7FkbQJUIgm6+1owmzbtsH8EpS42zVJ
-uj0/1KlvRZ7GLYgkM9f8Yl7gmFS9TinfKIqW3iFnYX7Uzc5ciVXz37IMnAglG3OJiBtiqcecJZ0+
-hhP7LqvBTtoteNELgmP/EFCl2hYtjJ/z0zq1Myj4AVMEsUQfa3H9KQ3E8VSnfYamVuZEExS5KsIo
-jOQ+WPlYx3OjZKKyKbj4KGcs59arkpXU4KpnRnW1C7zyLjerS+By+l6swm5lYidGM9FexkIB35cZ
-cna4D/tWEXAcp8Wu9YJ+6aeWcI+9E/QdqZ1ukenzVpLO4/1BdV3CPIc8QobtujjLoagD2hdyiO30
-2R8LaRqpu8n9p/Of6+QoOB1yjKln0Pc8nJUgdPowodAEqg0VVrXzq4/AONd8lU6s3ZwL0WzhhUDh
-ef7zN4GWkj0MKRNsfdaN3a0keTNsAubvpZr2+le59JJf754WW5BKk4xiPV2exbQUPalCP+BdgMoY
-GXsq/wwz450+1VQXeBSohCUCOpfHMq+UBQQnsqnjjZcrKOnW6MdQYVYzBzgGJDWRb7Zymo+/FnFd
-w4KThyUp5rIpWHYFLJzOAtOXlO2VMUXetdj2Sv/u6A6tQjRwLzeI7rK5iO5mCuYHEEiMOkaTb9I4
-fZlmuFmlR2tWWEcT0hWJZ7gh8k6WcTBfHCrUfiuhFSEjSuUYPqa5UGziJnh3jZ5ReJ+STsyGCUzo
-cPsBBgXxbSA5XMW9UtpxZiKH0499rFx3bQF0L6otgHRw5Tn8qF2Wq72yU/OcwwbPciIIXcfD3yDh
-uTOTfkEwVQl4mbBSgis11NL33v9cJ7PPFhczNzOh8XAYEYn4Vp1reVDDTNdS+pcMoPH+/Nmac+2D
-K4Wy52wZMvfDrfm/h4NUYVZXTa1/b+EJF7lwp4f7VDS2uSTbuN6Q4ED8wrNhZU8elRjmUSEcUdtV
-Z9GgxTcET4hi76B/H9pLKzCv0m4j556T6JE7Td/OT3A5FAVkkQ4ERjmUXWFBL4JHiLbEBDwUZrA+
-+B9RPPGctk+7DwKa6xsz9QCUcZu65wdd7pDXQenz09eUSTGW9b0I5SGtz4fARsMjvoMjkGwmczRX
-Rlnezr9HMcl5FWU211ucNxrRPpLATC2A6tQDLBHmeixKSg7c8jXQxInBZsMQuGh0vbHJWET9Ks+x
-KtNmRGLgMVZfmJ+40Lgxh8Z758ZnXgdDLTa+pnueMZUMBT+xh8iQejsEVt6bss2jUP7BH4PiGpFk
-ERfbVgpA36PQSJDRdj2dYxpuk7F9706gQwsTgjhFyYkiyeH5gnUwRZoOQdELi4JXbB2gspi8N/LS
-/jkYZXGKeZCgCzDweEQU1LPRznoUY+nx/EyONwDlCORZTaRdKCoZi68yJEIj+xNyahgX6T+lAU2H
-BJLurC1hrNklvW7dt2GJBIPBKBHQMqHJtHSp69FJUMeOVhaddJRkyBkFCNtGfVUJafkRAG6+bfS2
-3SMAKztDGMkXKOUmK7Hx6BTzRsb3RALBZc48zsWM0xKV9TQwvlkhLIASqUVn0OO1bOrkIKA8WFPa
-Nrq4HATpF6SE/cd4LFNro5SKdpnhV2ft3vX1ZlSMykOIPgoD4YGyiBVtkgxWoA+9jSFeAHq5ML+g
-nQKNVI2ClTfeYka/hyLLxa6VPjaWhodbXvGMMM5Ibm09hQBeM0G3TQTpfUHidRT6P6+TwQZziUaY
-8hwpqSyAbRNgxVHBir5SxGmta7eE8P0ehhbDbMDHc1VbrBvaOR1NNAEofadV+2goxyuU5NqPWutr
-u4AHM+yuQYOMCYerjzFSgSzd+hca2i0On3TtoC8O4euvo9MPmI8gCfFRPdLMZGT0kIvIxyGxazVO
-PgxIGmxD+G0rptyv2LA3Z/B1LKByMhuHBj658eF3VNUU+eeR7xhE1X0LwQf5LGU3efEe2eK9llff
-27D/3kpY6Kje50xrvw20oUeyvrKJL9CmX6tTzLFy8QtxkZtc6JYMlG6JGIJmATPXRCZflCpLeUnR
-gI0vs5pW5y36mVm8jcMplT+hCxc+TyGK1CuIpROLP1vZisCVAE0gwHe4IF41yS0SoJ0NPAwdXz3P
-XTDEhVsGUeKeP64nztDBUPOv8uaNVUqjHIzztgsaXbiI2RBXJKPt+08qo1icUdBs8114OEoFtdXL
-Es5QO/nBVrYGYVvI6E39g7nwrJLoA9KJ0Bf7yMJpIUF+jX2UR9F3mNH1R6ET9E/nRzm1OYB7cCSo
-j9DAXUQdUBd+0aUwq+NQinbYtgYGrBDJ3/iq31yJBcoOclsUl0oXdV/ePzR3FMgyAB/HBwV6dSb1
-KfRCheLc9SBp/RPeCMIFdG/tNkVZDvk0Xb8l9q/hA4+3CeB53ltAlkimCQmHH1Do6e8IVYSGh6mW
-11Gc5fvAqtdaLsdLa9IG5NOJpsgDb1mvD8Sy08UiHW2oeZ9EXXvqVPPem/TLDhUXdFubvaFW78O2
-EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYME3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6OH855x3ymGY
-MSXuLUANtF/A1SyGBkEDoSxmaFMHlK0MXrTJi6Dc4HcE4aGp1ioPJ5aX8VRaIeCSAbAudu4oTZ7q
-y2jiIIQcO0OW63srbQV3KOJiD+HzHsG/Yo8m8ZoP4HE8m/uCYJWAl7J7lhXzAM9BCNLoLCJsJDix
-mAturNbWtkBnayWenRyKdztkUDQNubUPNypyQr2RCmjlZAn9eSdA4yC+CYsOnbRmFvw4/wWPjgXW
-e4AqdJVdO/fsF5e2MEChNjWIGNqAhIdQIXNVxPinnR/laJ/MgHWGIIACVuRxeTgnywN3NiFFhV5e
-atabsQ+izE30QPsJRcxEEq2I1uyGj5ZxMeRiGZUEHqCJsYED47NwJTV+iQypcdMy6VYmd7SEr2h8
-oA4kWPSv9cXVEExjIKKMhKToWLYXSJakDhShbGVbHI9CaYNuPL1OblUk3A+XEHHRLjJKyMpWXGub
-MugmhJv0aSX3nf+Wtwea9IWDxdFik8smgqSHo0DQkrB+AvHSep74abA6vJP89mJUjM7Gh2j41OVr
-HaKjIVkx3i4zensGby+ffYlkKINSw6cI60pyB2TMNcfKG+FWQmDpxjKbWbZubDbnd+T8+Q8mytuM
-TG2GHzIomMvDiSZD33ZijB9Usw3t1uk3+U65lt1gZZhlM5OYcTjO4tohYWz1MmGcwv3+kLlYcNg/
-L2+fzk/m9UlybjbK4WwGvQ4gADKKvANYYGPpsZE+ovbiYoPiaBu6b/aHyr5ERd8ev54fe/n+PJrh
-vHHf5F+8oBO1mp21hL3q9A5YePvZuDYu33u1LldyPvBvxhmSDFmIjHHUO29Xwq5/ANd86a18sOUN
-sxxlccPAyo8SYZ7NtMUixEE/0MmcYuUsHz2VlqPMZ+LNXJSwktRo/l7X5eZH7Ny/aLunh89rBpqv
-Hr/ntsUi7IJnTkYpZJhyA/zUQYbAfkBz82ZyjC/IeF6s7IR5L58bbhFyLYwrCR8M1zs/0H61nzP7
-8pfz+WFlmBMB4+3RXb7P0zqrDRRB51khhOVQL3KwDnJMV3efdo+1+wXJoLUPthIuljyoxlQKK5jH
-7FzedhywcPN1sp+/fAzs29p94llgo7m5crGsfb8lxl5Bq0NO5u83Oj+mrbjDGGtTb4OP4YVnJ7vW
-XlnY+a4/8/3kRRSJVaiUsAznSQZOyn9UG+FPB422leWcj+q5gRYhQxVwJApoXtpShsJ358GIyKv2
-souNtTmt7ZVF0DCNqDaz+aCZ2rfW24dIJhcynmdZjCLJWs/5tdR2bl6L4BGZgqyhO/Z7AZMb7Bpc
-Y4sVnPMldEP3F9x7ArFo/1qb5Wv6eW7gRTzp/RRLgZKBlc/yZf2QfywvlR/eLRVH1LeLp/E+uwxv
-lFvtfmXHrC3vIsD4zRDq+bxjFPYMAgzsz25Plud4tuEUm2zju6ZjOmvQ7aN6yyJ+yotIM8pZnNTz
-waAHuQ33knufOpP94tkFy5tvZXv1Hj8VAOgJAuafSXPwbA4jdh2baSbOWxYv4o3E+VBci8xBdawP
-qYOT3119i7D1rtqpV9bFyiqfiqtvx16sMrIyY0KPhFzF7Tf6Q7INtv12dONtfSHv18pmpz4pLQX6
-FuDq6IsvHgQRetXRWBW1XSECL0qQcFGpUseXNqvcaLo7P7VlICDtp/RJvUNRAPuDWzhcVb0JZS9I
-1MkRlEbZIpOEuLJUhVitjdNKzJljytsjwlAgPOn1Q0UyDeSxDodKTFkf5A4DLQ+y+ofcyjJwwUqy
-EkOXqzePotLE4jUwk2aXpRUVs2psIVE9aiDn3qA9aVxWXVI74iinN1GRpl9gNEm3715Fijg8q0ja
-6YPq8/55k03k6CVUdYFlI76TxQZ5VmKq2qR3qNYna3tx+ZJjgrzhqN0AyNdgYS3OAaY81WQZwugY
-WZdZDhIY9Rc04JBSqrRcie8TqWvQfU0N5GspbteCjURieptEo/egNVmToyPQdd1FmeryHYCSEquh
-KixMuxCxTzq/LkfJN21X2mO6RLUJaBjtq8OFUfHSyBrDwMtS6jqsR4TEH4mGSNcG7lBj94oatNYN
-0Raj0+6povn47NeWb7oSDcJpGxWKvkZ0X+aX86+ksD/ocKH4ip3R4a8koNUUYhY/ODgtxOgNK7KN
-J0X6SO0fTYK+6MzLsZC5dsNuWEltjw+bwkcDoUZJmCK9sridEHQV+hGWiFM15vcS/MaXBg2iG4Q3
-14CiJ0aaGTU6nXiqCsB5Difp17PznSVPqOpFOmgKOE9uPkaIhtKqejn/kY/PNVVMyl6oB8DZEJdd
-ed8QhzRH0coxUMTZNNWAz1Ppr3RQjh45fDbIlQqoTHrIXAHzjN8cMZ/+hBJNbed4QuDZA8aidpT6
-is2GSi/Ddso3RuIlG1mM1Gsa+smLlo7SSgQ7Pnr8DkBvZtYSSLNlsW2cut7PS06XiaSzvvFzT/is
-xiKwQKtBEucCFWMUXd69unMcg+gD2keiWH8471QLUiVPPPj2dY4QzqjG2zQ1lP37RwHfPPcLgB1A
-mD0cxe872lNj1KH2gq0ngkiIDeOp/e71U0WFiUgU1mhXvn7jN98wHpXYaMCGOGFfZNeJWktuKCBC
-0yMi6qbt4G3fO6sZtgGokiYIO0dd7Bl5FOsES1pk4qfQv4xyYbrwsGZZeSQcBxRT1qBuMim6bke4
-Q8i/dPVGs3awic1cUUQGJ0GrfS+amgBoQ+sRiB3q7sIT6r9RWf/1PPwf/yW//X171v/+b/75OUfz
-aUaOLf7x39fhc8W3/9X89/xj//uvHf7Qv2+6l6ppq5c/rp+K+o9tm/18asI8W/7MwV/BSH//Ju5T
-83TwD5usCZvxrn2pxk8vdZs0r8PxO8//5v/rH/7x8vq33I/Fy7/+fPqZsjph3VThc/Pn33908fNf
-f7Il517Pf70d4e8//viU8pOfXyo/LAhav/+6Nz/z8lQ3//pTUPS/qOOCkqNQD/QAnMuff/Qvv//I
-/EsmHJMrUO+FUTAjRbK8agJ+zPoLmgFqbJwIwijQH7YPZ+z1zyTpL42oKtNioJwKsFr7839+v4Ov
-9p+v+EfWprd5iIHZv/6cT9ebzIib8QARscz4/hEiYm2MRbntH2I7fhN1lnOZUWAm6AvwREv841wH
-M6YxogQWJ9mswW7lKnCmTPiZ5Wb6va0KEUGs1K8eVSPU4aeIPRDaZJAbxKL9QMIUEcEpYY+uappf
-R7QWhctaR29Xxs4usrUqiX9ZFj3HT0TcctwMECU+9VmnoNUdI4uZPUb9ZPoXkBXlybX8Mi+v+hjT
-ZCezUAj17VATEMYSQhNZncJEtNTJSy3+CtTVRN1OqlJtByqptvZ9IGI0wO+Cr3gp5GXroG0Jl56U
-rBnwO9eUZC8paVPZ+FhF7UbFb3QCwzepqCdWkH5agH+IAMSNdg/stMCduZIGXkcYlMkfOtYOCTRs
-AX+KPvLdgG2rflP1VXgXgU1EKQFwIqZehtRWzuirwlcQ4t7kjP3UlXszMLPpMtNRFUBZL8V/OIhR
-zkNYqe4GG4/ekrlb/TRedGHUf8utPhycMjOFzxh9RxeyhnDU3MKxrpEX00unl0CYYV5nphddETfI
-0yq18iAVRYUsFxS1fJN1NUq3Y+AnT3qtb2jRjl8DM8fPubBCJD6H/Ekq/OZeQgbbRypeHD7XGA4m
-uwjPjnxTZXqFOuKo6uIG7SEZyjni2zhnGkLwEQP0DiZLlydf1LFBHNcUM2M3pQj4oDc49mjyln5/
-peCBjgllELY8v8QWRVwzbXJ8Kg3/ocG9yAeDVWGLaaaq8nXAMRsJYjLgz4jxeg+eEkV4R6Mc2btj
-qOVXnT8LxJeNMl0qqDx/LVILPb9oqFXoRapoPSsVWs92nTZJtMv6ZLpT+wkeStXjLzN7J2sBApGq
-F7qKNEqJU5PAfK5ToX3yWwkpDWmQkOzU2079NemWh1wrqNzEVswef7coxeUeBbha2Ep1m85WOGkT
-XMHJCW0PAgpuU+SId71m1qXdSaH+cURjvLIFcfLVD145ZZg1T6hqO0MrtM+h2Qfh78Tj/98tb+4J
-gL9zZfjM3UJL7+kPh0sNcCk9gf9cMX//6N9XjGr+NTNsjBlrDvOVu+R/rxhN+YtMHzoeafh8w8wt
-0/+5YmTtLwxgkFmCsktOC6PrP1eMbP01d5lo2M2XA1mT/J4rZk513oZlHaICl58pmtxXXF2LV6OK
-untdt23qZtB3nQgTx3u9b5T9pOTd85sV+vt2O3ebvQ5lQS0BjYZEwfKB1RD2GjUgWPAcNJxO6jQn
-mayf/2QQLhp6fjyFrUVqxwPONw3ot26AbNomQOjXxUVuWmnsk5QerRuIE4A8LB4YmqNnh2DFYiIX
-SAGbmS98GI0ROxns9caPOFcXxjUC6HhxFJnYpo6CJK/pTr2HBp7QDE31QWysmWZaef30E4iA6OEy
-K1Q0x50GjVvBllPFoFeJdXiK1RVoesvBdC7aobVuhttw9IbMxaMLrURBFDTEFNVBMFAb90riCM5A
-o1toifQi+77ymIV99zPxFewDsVnHT63UvUjB7iudaEb5aeO78oAHxR4MBoLxjawKvypQQdd5K/HG
-xq42xA9CjtoXSA0hCqZgFiKnpez1edBxT0AYU5O/ZGbuYQ0TJxEC2ICmnWHyqhDX4BSXhzzD49FN
-5ZbeUChG/le1lftZDLpHxB5JFbEmHGZy6IIj1xNnIqQhCCmqza8yVjF598xUzJ0JDcsHTY40VGoH
-XX5ueE9fKgJa3rz65OiJvx/n7U5qc+yQxLqiniwYIaowmhzIH3IfY1HRiJBFNgpDexIjHWnPSJaw
-dBk7k/djjrUMnMYYX1b+/2y6zvwOUjy0yuwKmdFhwOWzwYZJNSaE8EOzas19KOhDfDXWJQrXulHV
-aM7OpJY7iQtgcoJM177jBifQ/RuG6i5r5FDcl5rCOoudUCuOhmTjtVim1YMntz0SieYY3WMclP/I
-gpyLAMdtcYILgGQ9YsdJITltrQ3VB0nHzdxpFBRFPiBJA3l3MNToBetq7wvKb/098ucqzngIODUT
-Ey4wxKzR7R1tzLOrTwP69d95EUe3WjrVg92EevKAlnz5XUaVSHTkocIKhseL5/qFpD/EADiup8ho
-PmRpaEqoq2ftuPF8o73xNLym90XQmN+U0NJ/VBUavnZJlzh0Nfh4V1qkStdSrvMl2iKu7y0/iz93
-tWVc5FnagKcqtOqb5aPn7AYGvmn4dQnjXojx3+T3CKrvWk0RCSm2kavNahSUH3y27lPX41DAdi2q
-YIcVJzrHo6GitacJU/iU+9TdUCsF7ujUaYI1qT5FSscjDCVWR6vQBbWxmvYvaAy0FP9J/KHrotmV
-YNDUDnc8t7rRkeQkhxU0yUj2T1qDs5yQ9OlTLQ/FXZcb+s+4aLz9APGvs6tEF74NQfg9R8mUQwYf
-8atntNSx2lifBgDgOpwSOZQB3Y1tX98leMkkqOKr+JSYHq/RzeipKEfzxG6wrxF86YM+DOLNoLU4
-e0WYZGF8JuOyig1gUj3WplB7iG5E47MukJs4WQa7xw4xvsWgLRb8izoovWHTqiJGJEIkFN6mN/oC
-2f0yxGYD/USk6WeBYtnRGzN+6pt2gMWDtDosYgF5R1vrRuFiAnxDAi1l6V1ToK258XLj/7J3XsmW
-G0uWnUpNADRo8XsAHHW1vnl/YCkDgYBWAWA6PZSeWK/DV8+Mmawmi/XXZv1Hs2TmUQDCffv2vUCU
-riMqCqjYupRnu4tqIt8ns3zJIZT4MKMGYe1Mu4CmB5AA5p+OphrAukmrR5yz0+mkm8qCUcRQjNNB
-+Vo9dXPmJCWPoDAWFxLNbrC7xomncKVPX4Jc6LiVLbHhrbH5RHoXK5AKgBz5G7MBa0lCJR15ECFx
-pem2Wb59aArCQXaBS2olj7GVBO38cvurWZhA5WwZvsAhJ39b9tRK8A7pQdNG/Z5OaoPcgC+gGEr1
-xhJ887Imr669ehJPVZ7N7y1EtbugGhw/7beswRsX1flh3WxANp0aIzfGN1EEJItpWcRb2djvDsyl
-+n+S9W34U04y2mS/XmiMh/9m3jeIIvscGrMCV/jP877LEhCrB26OWzm37Ns2vCRdI3NE5DpLs10O
-0WAEP0J3LdSu1mD6di2RhUZSFn05gdNx8nsq+mpJrHZuHy/fyIwTzcuug9m23pma9EsKs1qCai3r
-uoqzpWhv+c8IfLXQ9vOi7OVVy3pa0tJyxmC3BXP0ricr/Ni4iq/LtqVNu9QudWIM3UJwAohsSbLa
-or+MTbXpuFt8ya99IS7HRs+ts8uDsvyaudywZNG69nmyq43TLwQhtPPnaQCk2xP6HY+b19x7Q2vd
-hiFHdFqygf0eFr75qRp6bMtuaOpmF4AGOAeEcGMpDKfLgi4i79dhNqYurbJl/Sx5KeBYGJzeutUq
-IFBFonrvrbnyCdJos2fHsNeXqpXGse9oHnb5xpSXfT2DrHXlmwtQNu6qh7Z06y911BKW39AvwrmF
-6rJzi8BsdwpozK3OJ8dKFH6ah40wtOcq0yUpzZCLPtVzR/b5MDprIu3J3btw5U+eCeHHyOEC7sw+
-6JhJWEa/x/5FCvKW15VLHpJh19Dip9onncXPbnDYsyRWUdY9ATZTz0YxEz4yB+P8phcpPrsMWBWn
-uLl9v4zFux2sUq8DVTEqZLyxknB0VjDnEDB09dSz8EB37FbrNQsD210HsPmJs6p06PC89kTIFIxg
-RElIQJLImgL5vbbfA+l51k6V+fCJNRH96tqNBVitDL3z4MHxgc4Lh7QPKLfiGaeeJj96auA2hb31
-kgF3/Eb++TgfK3QCkVZy3R5qczDv6yaD0G50Vfjoe7XxdfArUcZgE5ivhU7X8jWRqnLdlF7IlTqC
-gOD68ThfYZqRpyOXqfB3buNC5RB++RYpPucSTRdcn9u/bY6a022gy805Qq710Kk7j6CIOnY4np4W
-QSZ0vPDtuIlYlulqowtd2WKfIf1xqsCZX5oc7raKXspcOm8ShlC4r/rKfqqswbaTbg7AhmuAyK9F
-YTu3feHloP0CW+VXbMBO8H8i4pjiWkouCyWb9bUIdWTvWkca1/2ibdCws3Tg7MGavR+IWYeZbZti
-Tg3X7/y0der+IQvM7NvaWNzIKwtHn5XjL1fgceDmRkB5wt02G1jFANXM/s7zoP5wJPX5D3tj5rHL
-jK37EkHAIZtD9c0Lx3aN614V2V6Zs3VaKhu2W+0K72Yu+u4OSE/x5LV2AFKAGPPTVoGA23VB3jxB
-XelfOxF4tPlW+FQ5fF5Cywln3ato9L8uRNgg2AyBuHN8Z8gSNufMMwdsyFXBY5wrqFp9aqsxlG+1
-1qER512tfzAIXO6jYgLzlkdjfx0G7US5W3TZnGiy2/TfiNB/6rwQCSMW4T08dqjr/i+eDriloAXc
-Asy2MrqH0mijhKpVH2Cn+G9/3RT9PkD6qctj9x19M0B9IUfA/zUfhezcHqR11SUFaM5nUASNwVjP
-yD660IBNMARrzk+nV3SI0nU7uQfssv6o1i5yUuXZ7asVjCZRg4NqrSs4ajDpBLGdxs6tTetqWXTz
-TMpDaCb8rvb3qZ83P2GZpD2N0gpuEbmLH7gnhweWl9cPz9MrWJjFa/BvNSr6vEzO8mFJ7UOWapfw
-Yazs/Nnv3e0L8kr1pB17AJ2j6Y/+v5TxJ5mcZYKLJ+ovpIz//b+a/7j/PJXNzzLG73/t3zKG+xt7
-V5iEGZgwJsVM+0cZg8QZZl6XtVQq8Yux/t8yhhX9Rq/HhvJlj5+/fLku/62UI3FcFlAQ0LHnouQj
-f/wDpRzd5NeG/JLGgXDA6gTrfSgu/PkfZkiz6yh/klGe1Iy1w7jndFlSDaL0u1qn8GXUjvogOByM
-tlc0JEkNYFUBWVnDEgdhob+GxTK5V9EsFMZaiLI3dTDkH6oFvLGb7Si7CQU5kofebocGLpE7d0+2
-F0yIddmq3yUp0Q9uvun5oXCsMjpPbHuV9wLij3ndtTxWElWpDE4AkRgfqArqjn0Wt91TH4Hh7Owy
-V0EMn8OavuiyNK9M6vEro5paiL+18N+KaFpu58pz9ty21prwWanibYiqJPBMzkrtsjTTh+zt3IxH
-O5o/mYUp67gE7xPuhO6W+9nWvr+DzVJ849ws+3PUj1F7qwG9gV80Lf1R1B15aLRevXtdRR1S9SaW
-GTpvGKzvPqUV5VqEjr9rxmzG0ENwZ0etQAp5LHLsXEDjKue7aPv1OmwKVg2toMi8HTtHkGDwJ5tj
-Wm/NBf43FODzaO8uHO0G92hsgPHeWOGxp2upBFFKhPGCN+oWePOZb0dor+YFeGKC9flaq2h6GodC
-/hinSZ9pX4s35VIuxFbrA3IWynRvydLpb1DghofBE2wxT2yJXY1TJ4dkyyQs1CwcVRQDANEXqI1l
-fcrswr8VtdOXu0s2wHes+SOlh5ScFmFA1kCytlQj8RJV0bN2VhEdCB+K7tehbAVM4zLMd9KO6Ktk
-ZdaXrN/NaPfsTFtfzbYIHrlQmglSSiBuoWnzNbZq3XpAM/DEdhBErPIGRYsxaKVm4BdMp0B3CIdw
-sjSk9flQJNdnuxFswr6nTuqgPkb1V+YATXaIVN585S6rvszRCE6rNexx3nXuWr7KDlbrLmpsIFOW
-BQ9rHqEoqHErb1rGk0tc+RIdvGoLqFf1Ivh5jL663wjy9ROS0AeGlV1e7pdQ00o2TQhyuZMFH5AC
-n4Vjzp7oRxDq5TMCgIPbuDDN935DKyon4tlj6Y7sPReOpot3On59yoAtxFxhtRWq00bx4kDLyACz
-KCC3RTbQ6ro0ac8U7aBJ6Ay5vgJ5aTKCxYQPMXoO6+EFhTGDjZCGVWwurvvGF0RdwIkOH1bgNyVk
-58y4hv9MOUQct3qWk1HQYfeGUaVCICzsAswDZqLEtjxCmwmfDSeffpBRRJ+8TMq7VrajZVL3koq7
-GXVA8941/tfZWlS+Y/YQfIR9PeDerp2FNG4zap9E0BSvllHTeY2LOVpsMpsyS4ppq9/AQg75vrKg
-uiYml24OH6EIXJ4KxhClNA3rtRijmhaj2fTLbLjFpbwsJet55mbNB0lUIghidhFUTFkcAAw3i5E7
-JHS3Bd+kWUZxC1HkzFdrJo2rxY0J3fBuogl5zKxD6N26zeQtSTNkzuPoB3mZbL7Npcich0hSXCPF
-vtaE8cxqItsrZOwPnd3IXDcdLW/4CKCIBecATskDdBD5zdclwK28kKtJMBYIoH0tBG2EXQvrR0uk
-75gQ/2Ck5PYDsnTZ6+/hjo7d/Sx9r9mBCnXzHcP69mT0jfaAWS5q2Iu5XJ4HLYoKUE4WvJtSm8HV
-0EYwfHpHRJ/qDXgeSgJ0nJRBIT2GGvT8LHgQIg1EEOdgqK/ko7s5YdiX8p3/RTAGfNRqYCefC9mb
-90bo5A+g5NezZiuTDDeSneq0dTewqGXlV9dZAwPwlJWBa1EIjiVLm62IAN7W3YqTyrKec8ua+91Q
-1goGrDU6T/AxRctPvgawCiPkULsp1kcR+dX3xW95jFl5bxzGMdvSkNSBs9IXDGMDXBCw3xCWUbp4
-Fawl2dK41AIkJmrMPOl0rX33i4ZcDaTbNlR/aXUbhj0YUgJgwSawC1cNNYpoIOEdyZLrGhyD7K8g
-xBF24PR9AyaUmWCQBMsGJ5UFVd4fFgi3ia1tFCe/udi9NGs5351gEv6VGMCcJ1k5QGAbB5HbWFsg
-DF/jSIEEooir+gRrbVvSeVlpTHOKPwcUniClugHN8bEt0oQQaTJwZPHGA0YnulU/ycqfc0Zntfnc
-EQ0KetUx1+hYUug3TPvI8EsD2YKlY/pYlgQITsUMUzivIWd6rrwaUCaWXYNIxWLkoKYodp3M/mSG
-jdEdPbcnkNipO1eczKBanVj7mX4OxQUA5Qp4gCT2Lb5Luz7boDnCme8/kC6oUjFVy5dNbcQAi3Di
-MjGryX0BLzJVB9FMyxcx1H51HKS3bEdzGnlYuWHBVYa4nLXPbkYVnTo8GcFzzjSJoSMmP/GXLvrQ
-AWzx/eRGSlMYB5l5ABY3ZjuWD6Nr2itBliaHoUprM2uH/cLW9MLRtBXmjvaQeF3OhVUeoc3lPK7M
-VS4JtUvbxuHAWwy9WnwTU6SbvXZXrgckVN5+uKlVHhQybhUP07Ba/Co9t4PSPW+9ASpLYxZGmw9H
-y/EIJYryGah56S3rtQoYcCQzc+Mn9lzx8BIH3sUFRqZ139iA22MgcYSBAjvW35UX1LegcLstdYZ6
-ebR5UoLvHovMPkQ549njVtRuF4umdrqj7nQR3omtnv1Ur+HlnxpbgGtqzfnm864MjeOs5x5/u4Xp
-7ywLipqTpY0Gd73OTJ9IvJADhH18oA6dRs2NYczXw2nqDb5IgrCb2NdCV2k2WdaPjK6/iyE/sxlc
-bHMtjoWUlofQZKxzOqzCbNKu9pu3IV/QOmFQG9fm4JhGPDgbBUCgxdrQhUtws8ra5jca0Cw7wY3m
-WlqxtUK6mrH1kTczYsCifVq+oAF33UEUgylOGnyXoKCp3fzWdHS/XAl4aO4ZVjKXMcuL4fYwRIMs
-T40FWPXday6Iam10zzr3Tbhag56yg8KAdXLU72+i4VY6NaUpuVEIcPG5OmQLm25YAidZkUGiY9uZ
-zAZo8K2XOlpsdeYK9NmMhgEMyKHNQjsFReB/EE5QfFPTWFeJ1pXqDsUUQPGqUXqcvTBK51O4gIdP
-HPCbt8bi1JfTy6wO9WjwEWqAzo94UrMIuO7Ip0FIN8ncncb2LQOaOiJDcC1Se4G8TRtewQWNaoOv
-h07egVs17E9i08uXgjA2Lml35fnd40wUycbMzQcE6XKR9nXHHVeAUO25+JmqwzU2ucDFsvH/G4vH
-lRQ0xMgk26S7J7WFVR/XhW9QndaW+8L3CtxYlc6Wwp+sz42uAvpdayneS1R40o+8zmTVDH7PCL0n
-dN4K5lT+DoIVj7JsQGjYSdkIRKJVu6cQQ6MVM4XY7N3I4i+c2jmgoJyHfnwMaKB4iE5ZRIXqNN+i
-LhRraoyj+xiafYcYU09UiLZYlx9NoNYgycgI7uIs6gxGFoEovxNFS3Am7Udv7otO519xWzDRrIux
-k2kJTyEpS+B8KdzBClVzG4YfJFoZDdJhifzkLwXxgFHY33QuBHuAef52Lwrtv24bdLpdh9kZZn2g
-rZcuN+3uyC/u2ru1dsf9qhkDpgbDSJn0yvE+ZeEKfjjorCo2x4lDyue7nVJpAa4l08nor3jat8hi
-+SCeDRn448PSYW5LnXWqkVKZszv7cew9fzfPRf3FCS9AaTEPH1zP+acNvdSLCyMyRSwwoxB3SfL1
-xFdpuMEuqGW+JJDi8Nt0egqJGbVa3slmURl02YXaRlAnEy7m6O5n2HikxnFrZt8AOkYq1iDJHtaw
-ca5F5+VbbJdhOR+onTqHGkqoYj/mjekeNZT5m37Op3o/K3P8FjhlE6VaKNclLNs2DQoIvOHxXGhw
-8htrlx+GtN1H2rXVTqqg29jkdoG/HlRzuSaImPbq1GGqAGUVbQNiZU90XjoVbnEVdCEipevP+mux
-AB8eSiM39mOwOXQk2HxAoLacl7ve1L2fqtAcPvrq8jB0tTs99jpvwsMf2v3/Yi7/e5DTT+oQ7TlW
-tovF02ML/9eZuTHnijEvzuuNwCLu4bpZ/Z2eQ3XjlKr4yKete8tZWP/meBmkaaKIXIbT5oSECcnZ
-oBAbqwBYecYzIpF973756zf4q0WNpgesCPCzS8qR+afQHmd1OyzskUCGy8XNSF5JUkfu+jd2zYvB
-42crBC/jEAeIeZ79ACLtf1YQpqIqgbrPeRIta1hd9VIVQeJAImeK1SllxsS1VPrSbc9ftnHxXprF
-ZmCIR7V+brxRf5Yohn8XJ3550V9+G54XDgEmlM+kxV1Mpn+QNWDLsfeVCZn4/dcqm4otaYkzO46u
-BGu0Vf/0m/5935fAm/ACUiLV7+dX4zETuAaQrdjrRnE04RdxkP5t/ssvxlhs/7hvSUUw+UlRa36N
-YphK6c9Vww0l5CpYSeB2uyu6JUqZphscyGgQVd3We8fexN8sZPy+t/LT98lrE9+BuEIQI4EFv6iu
-UdGYmSoqh333pX6vusyB903Zv+O2vFgGGG7YO4eOPkSeB7Yct62orVSjXOdcf2CZD3XJef7U6s26
-7rx1+9qOyv9mOEDpwEV7NDiW3rI3vImFnfz1jfAnyZg3zy2KlotXGvPgLxcDWQelDRnejsklp7vG
-z8ihcFmam7b+n7/UxeX6r3hlYvV+uRna0sx7RXY5D/YZ0nMHTHtxIJuqqOv/5sa7XFS//CQeoVFo
-i5cke4Jxfr7oCoXXcZk0n2owm6s8q9uDkW1M/41APGL3hKCupyIuqsW51o73d1H6f7rDLjCTi42e
-1H4uyeAXAyyBcNE4YnagXhXhwdhGm6dzz5luGg4CSmM+/PWP+Ken2WWlCk84e1Wk3fjWL46rViyk
-sTPq5zhS7hEz7Jx2EuruX7/Knz/Vz6/yy6WiCNowOuVkcWtgthI4NePyUt1aefQwz473LyX9J7/5
-H71dvy+8/vwjks152RIgWA+V51dGn1ebDDJDXyTj6shbr1y8h3ZtqHiD2rDRzxgc2MsXy89UdsyV
-ZR143EZVojokQ8TabXjjvKRRoCkpSW9calkm0zDZDWR7nDlgJVt7jLlioW13/Wg9L8s2PJvSzz4k
-cTp/l+34X/1IiNImERvk3BK9/PM1mbcGgg59dox92P+UK/nODqd6/Ovf6M8v4l4SuUwueWazRPn+
-/CJls5a5TzZOvJYO6FmzQUBd6vZfXrV/5Ne8a7/XT2P//fuIzf9Xb/9P2wH/D+8DkLjMkf5/H3Tc
-4NQc/uPwvf8shz+OOhiLXf7if446nOg3HgWc/yDUcIn8Ps/4z6UAz/rtUiNd+CSX5TVGF38Ydbi/
-wYXlVGOiB0MC0eUPow77t4gDHFQOFQaGQRCq/2DUYf3rifiHm40ijTOMf5FBh+ORMfTLw3leagSm
-2uWJyS7XfeiRmcie37zzhrW5tUv7A+fo3RrJPLWw92GpMfGjjHZsT+WxDibrc7fpCO+TFPs26Ml8
-EzMmdEOi7lYYFkNy9FNHFxlBu+4zW8SQbaumvuXxKa9FwZTeGUuFaaHAzXyJzzRFsDLQs0scfMOx
-mMR9N2RrymLZ3VxM7T4f10eEn8MQChSrPDSSdunfFNaadJ0F523d8/jtsVnJzhte2jXqr0e/zlLE
-BXlyC+Y59dK/dGE+XBlm7371vGxgBF4HccjLHpRBy7ACL/+Mx9R9ClWEaY6WYy9b75uX1/hXXHEw
-vdEnSMdfJr4W6KgWmzVHbkAVA778RPJie1qMsL8vpMC5U0Vs1S52eGhweNzCpLoTRlBdMGjWobyY
-pFwyPT9mwj0SS9GGOXNkCL5Ehjmtfhoo5ffjGhV3gzvYKEsk4OJWQFIIjClVm2wwS7gPi1F7CQce
-3sKLPu3RYD8WQ2Olg1/vV0zAO2afOkVSJsC2r50E5TEt3Co452F/O4dbkY5DuCbDtr1AczMwMdAG
-AkLqiWsZ6hOPxxmPR8vwvyi8x0aP5X7twonZgsKjYVpVuin9uI0WXDk3V2iSZX3G7XSa3cUl/LDd
-aIQAKrA7271ZGwvARseyIKkt2EaYCmyJ1RnuacJgk9hT9qUvJjNtmbI8hobxSj2fMnNa9ixoP1bt
-eo+sxta5NLCv4LrZTbn9Zo8TMQYlI6BwnRAb6jej9A88fd/crOC6ZlaxiwRDrW3uzwg5LKh6OMfy
-gSTDJSqzUwcAHFCLJmGuyAivH9u+fxaBu+1DSMxhNL45vMZzbrj90a9g0uPFuJ+MJdr1uEaeA1TL
-a0uPH5VaX4rFe22j4YfatgLT0Hxom+jWvxzZD95iTD+EGwz9acH3Eu3oRMc6HhqvXU6Q+ZYqnVis
-Cq6Kal0+VrcPUWGjrLl1SeYFxoZfV93NW1bdTWFZlCh6rgpfR6P1rSL2V1R7Zmi92yZLGRl3rceG
-2g4+AwsfhAlGW4xjiWWQusvWNs0zThO0bTTal1o5LB8gkXUBv4WVs0ey8vzab55WbTJLSy27VbCn
-dqPAsN7VTSvaWzwTUnqp2dltaCfYwlW3d6TMq7TSNeuE7D5Z8lvfuJliew1tGKJz1b7CmPYflgmS
-VJJvpOnHZmBAPPWrgkmM7Qv9Cf7wLM4Q6uStGN0gOEBV384Zmb5GcjE1o6BvsprgUDYdtxsYZ253
-5qLdaZr1SIyts9rhSWnXY2BqL9mzZWxRlvhrp7rUjUrz0UdqKbC+tjXbJG2H7JVbunb2Cvk1OlK9
-Bx7jKW3jpOrCZbvIvYPEdK67yYwIx80m7Clrjq4T2lM0Ho0aJ0ISVCwU722yerr9ljHlJgAD63HK
-BlDEEjJ6db4PEexkMqLJRfEYjGGw84DZvpnzOpBzlrXNFm9t7b2g2+CzGYoVIzIx2+uaiHLsOjr/
-DN3FCrYFOQ3b6qnJcxTc1ZfDGzERDEwKC/vVburD/GEOWPncRVbFWEmADxxPZaCiS+ZTG4631RCw
-Tz6IcRtvaJekcdtHtcRVbExivY/MIRyfDWjJQ2JUnn0EascP3NjerE4qqyMDS7CE11z2Rr/sbHfR
-n+0h2743g5s9Mj7hC2kiuUYpxFLW/f21X1knGnvH+4ow694zAyYd0DXWz67WXpb60pmdRJUbClLN
-2Rqx04L6d8BHNxNrHlSdvZeR23pHEXJoPGT2FKi0xRW6xs7iKYVUPkmMWsJbniZ/Ge96juz9bBvz
-sfS2K9PIiys19m3Knnr94InuVhbmcuhUqJNcB8sex2lzJ0Dbs3Vk6jss3tkOFRAD+4pTMJ5z/dkS
-xXbIfXm79L5xWKO82Q1yMK8BS5GHUS0n0+dmq7NyRI+GKb0sIjE7r066oR1uaMrW3WZNOAWDCX8M
-5nicZjYj+yg7tD2Jfo6yZKqWiT3/pnoqxfwgHKr8lvMz3mrpwwT2o57NNSXUS2+WyrjOBvdY2Tyi
-dTuSYIev0P9gvlYuB5RvbGl+e2bKgWk+2rxTI4xbr/O3K2WUh/7i2qYxE1l9w9zAvJlKdLw5+4y3
-3GFE3PzoW5CD+bTU+9yw7mXE6NYsgBwM2KmToPSdZBozngnNfXa5Qis2rzaUehzELCCsPK12M0il
-26ZrdLzm2T4z8Uuo1sFD570z+TTP6NI5p6N/k9XBcmzq1r9hGXtOWN7HWd/YR3ttUsOqjv5mOcde
-j8N3f/Ni25MqaVWpj7lsWNNiftlgZ+BoLtrgjTHDc2+Z42nlgkhcY6l29iCj3ej0XwaGPWPiLfOj
-xvOLJEKFtKYjzaLNSVUzNW7bPkvceeKJwUrOVaHX+jBNhnzyemC4WFU3I/hmDFYvznnBilbMOLP0
-3rrKxCSaV669HSDUrf7tLKzxyjaozfZBtJkS0pmeRdpXyvZQfFrRJNsK+ekhKlefOPEM7z+7X7Xm
-tJzNg4yaLW1yP5iv3M1k2S8Yt4L9vWZ8KoIMPs0s2ZrbVa7VfNdUX+0eWqPn3Y850IFkkquKkqHq
-2vqqgj5+bJbNB1iigrB2jjLfLOsMuZLBk1Z2CbhSRt23qqpyzbiUucFRY9biO51tbzxNQ5evh3bi
-HzqxjO+UrM7VyAefaiNnpTHK1WT1+6LoXZ7Qdldlpzw3vCDZsK8W51W1KxMEdNP+XNs4CBlvXAao
-Ye06+RUwGoWl0y8tQQnC/tPbFljcVw5xpXKIbTH4ww2wxqrfdY6sy3t/NfV0bw7TYmHwNowtS0Ot
-p8cJarCxY023fojMfttSzQ5497BS83y67Ay5d40frFtMQuiMQ5awCjL2mDEHuFERgA94DGWIhsR4
-Ou7zCStd5i8N1SEVVXvkXQwM6XId5ifflJ7aaUoDwrcDLYWZqsGqzgXjLqqGEXuCIaIxf6mqVSG2
-MaAqUe+xhT7aW//Jq1RwZJnqKFmMR0OKur1VboeNBcOjMV1qWhZEZRApyevhj5zl9Cxd1PXOtr4y
-l/6iJKRrtigls8ceuTFWyPVPk5vxNpl1p0XYvOjRPzPNSKnbksgYARk4LuKTubWHamiPLBG2HD2R
-eCkqrmCru7F89vKbCoOEN1RE3ZAutvPJZ/e5T/a+4UYn9+IMAFl0nrrmmV1cvLua66dmUjRlRmI1
-093Qe/qBL/gtL4p8tzjlnRmq89gxjAqYmnPkdWc0s+KYTd6JkujuMoD8xGNsufVGolRl/jQZ9X5y
-3NQrS2BSQ/1uFRabvEOT7RufHaZufC279n6IpmNu11/KsKkSr5ZPdu485CyFop91y4cU9aeQOxTg
-kTzjGeqOzNjPnsoTZ2nJoilakAR4onaG2r5YOrspO+9pdDNrRxbije46HRdB1F3LkNjnxrlURH70
-5nYmoUBN82ObxcjMxaJXGfmcgb4FlHs1W9EBrenGH4yHsipet2C4dVZs4GwVnP2s/NpOY7GvBmHs
-ZObkBydnequ75v3CmIsxoZi7bC0ZU+NM/zJP/dNkBo8WAZSxEPNN7kZHeqn9IKaracEejS+JeXkf
-XG/1QDHKcmqwjsgm1kPQOrQRur0vIu+BscaeAJ5XfKu4bewh4hbd+tghcnK3huM7R/XFgFVcT4ZF
-fBz6FaXueyPGfbd2HOJQBuOOZMpV69SZ27Ndj/pQGAPbt1H7LbO9/iB0+LnHpOXkHgaE6LyJ9TWk
-NcL1CzSvFd63JaIov8yKnV7HTrV9mcuIdRsS5Q6uLN8LmiHOlnYOr9zRfzNZMf5u+sZ8nbnyBXDA
-+IR4Gs+mu2MweuIxQNu6LKnosnNfrS+qMq/qDZQQjqh77QcHr/avB3o36ssUj/v8uk7T9dYu94rG
-6rYLgif3Yp+h/TV51LPyVfRLeJJTQdACBsUPXYbJ6hXto9vVzifP1a+ytoZkmG2GrY6kLRNlH3tV
-dp93TRv70WYk0aDsq8zGA7IOFj8PazBqL117vSde7l5lYRsLfCZXGCS+4uliWXzy9TWHTbu7zALT
-DTXqqUdPOvFv2CKOGJfuVpd7uJLFdyZ7IQOiuYEElXV4/6Npv01ePx7cyWntg55xkew4bafqTWUL
-0/ZBDYxUXT1ndy7QUjwy5kgVdUcXh40A07ecTrB++FtulptHyvSiTcbeyruDkvNQpLQ9LhsFjV0w
-gGaYy4AUD2Dp7JtwANZjDFg6+Ei9z2ZFtOIGcJTHn4bhdBm6Yp1/DqeCOatmzwPjzcUjYSOHFdcM
-94i/qdksf54XTBcs62l9PVek1SaIXPKqMDVvHfOQrFXMYRFu8YR3joKtX6OzgrtEwg1MNqatkdXy
-TFiLdJm9jWq2b/hUhvaRwQyt96aXY39yagJ2rz05DPnRpo+5yb2chifSFSW5IStKWqTy5luWtfN5
-orESmI98dWrbUTwoC7fcldEOzg9HON0z3lAgdIYvJorahTyOgXhiWMXmZ6/c3oXrFPdDN4Z8cU2U
-nxtbh/N+2Wy2huZuOI9hdk/U8+solytWXG8HY22rpB9t86YKlojlOOaD+44JSnXAY93v2Wq87R3j
-agkiGh8MpjsxzyQV40JNC/SYppd2jAq8L+eJPbN+Ym5snetlu3d1yZfQbbGT+9f20CRTx4lZOdMB
-FtirQxd4lQfbLZaIeOl1E/clyyCrUX1Gw16Pg8LwMIUFy2tDdds0mtrS69jFt+zXsRzWtNr8b5xD
-t4u7MBt1npb/w955ZTeOZN16Kj0B5II3jxeORqIoipJS0guWTAree8zmH8ud2P3Aqvo7S9Vdufr1
-rm5TlUYSSSAiEHHO3t829SjYYTSlqaQpgfAqWoV1DmZRDrAuxF3oZ21/R2UruCY5TWK1ENLxPizH
-VvGQJ2V3yIJSyU4S6qZ4nLIaX6xe6t31qkjfLCoyUKfE+sHnKccmvVL08iBGKEmSKOL8McjkA9Vl
-Kn+0YncjUwwK5NLtMPas7qLy0FmDj+voLZEJ8B1LFAajvDzTow83GLUkHL5GxMoo+zyM3nPKA2w9
-rBr935KwYpnyHcdHDv4AlXM7BOxxKIv5iWLSDxq/yH/x8r6qWrmPxaE8TROZWbh8xg2P56U4J2nN
-ls8ca0W/LVW0ltgP163X0M7CFUdyC1hAU/ElYmmUyBP0MXnl9MPVwQyj2GqssxULRRS6noiOhZUS
-wxGU/yxbNUx53hNtLpSmxz6U6a+GBhu6hFD1E89u8A0N+R3+uKi6v8TIntyAg3uGM1iZvxe5MpDs
-1bXNB9VynWf62JroRdJ8ZEKHKB2aQ1NneXvX9Mh2baMR4hagVjk0noUmCu1XS0LDe11YxtOM9Ac4
-nzoIHjkiI+3mOWffCpVr3WYqMCHRf6aN6GlDwpOiVYTxraJvLOyLbgYzToc5xm8KOoHgSoALRLaf
-ER12V9Kop7dqqxifcS3WBLSWxhaCh8ZevaOsV1Xie6lQj6PpRnM+z/rqwTCjkfT6+baa28HOQ7Hd
-GX3/Iy9pCo0MID/oJ0PaYwmqHXmsvKaUO2sfTeawbHU5bJRTMhP9zOw3eShQHEzxHmI1T/ajhYDD
-lci+Dq9a3ayqTceG9QPnD6SKXDTnz1oPE8ujd4k5qkvT0dogVe6Dm1Evi31C6wZPQ6EOMXo0aEu7
-lLgOVNI9MvIrgiw4sqQ1FWQ6mTw0YF+IcUIlpqLYFueKGe6rjNaYR2eGhTdsu+C45nXMTimWqiNq
-5vSE48J6iOZadNqgz5wuySUH2ep0k2HpfSR+561clGYnxjmVJWo8P9Rgzb0VQy15HQ0924DrzFBU
-jbr6MKSZhLlD1AS71jgzLEtvnZU0WrbMBMuiGsVru/TehtERi8iYrrtSiOiFJkoQ5gcjrSbp3CYG
-ikzWmKI+piNyva1yEaQNE4eXXSoHbfK6NIh5OA4ibODgWi+3GeLN6XVKynD1Y4Wzdq8NIlrNphER
-ejUXAR3IYKQgTUHuBJU7Q31AyFUUd2yCq+KkmHPcPCQzidK7LoCNBlX4ovej750s2OQNq/S6pRwK
-/HsAXNBZJrj+rk094BqMRc9+ATx7EW2LssQnnDdCmtzzUWSENRand18SU250b6lhdMrassEgjfb0
-OSD3WfDCRhSkT02q87eYe/PJcVvKnxDOoFJuo9JtlQx1dR6pKFr6MEHqhUsT42PYgVHxxosmU4vI
-cD0GWdG9qch/Rk9gxFCMJF79KkZMa/p1Hesjt27kedaFpVV7U5pWHOKgshFMuMpJA55A0i1bvQYr
-7KA016FgDYbPNKkFt0d8u1onRYylhqZa/FMtFgeWzKJ7wSpu5fSD1mpE5oPipZEYnsKsywuqsTr8
-QAIcWLYhEN27Z2ETUofS3MIK0QUsaq1VwJ0RkgyRGaEdLGVVoLfTjaVm0a6ntwlVNzPW83sfM5g7
-M0l0D1KCOLiUCivegKFM6cZgZt1gX8/C4wQ/kjmEwOyJmSm4wAcG/UnuI+MZa4F6xxrBLtCoBNb6
-2mD730VuDWSFZz3bTXob8dvQhJFndE1/s5T1cgiHWbnLtJjYUDqc/oiQ/cYclF3ddfLjrAekwMnt
-FmcUZlPqng948vQtOw62SUtcBTeJUqOybM2ecibK12ypi0MpDenWrJrXSKp6XxQJ8yw1M8B1qcw3
-+PEmOyhrSMNyoLMKhupNE8Tq3lQFyak0ZSeYy49cH3d1Psu2wWl6mXLRmWWrcme6lmaDa3vs2+xZ
-lwpadqzh2wnFpb1U3V1rNtuiNu9USnzvdD3vLSPbIweo7Iw9iduTanYuOvM6tCrkSkLo0EHcGFZC
-pHdseCEqdh9KBMwb0/wYisBCcz9IezSwAsavhICNMeZaoJfTtcxu6OFQ2NH03xKM/6N24//v6DG4
-XIpsIB35981G58dr83//5+c24/9+0x+NRuObrKE3Am+6ZtfwgPxfT5UqfVMJBxJFoPuGBZQFIcgf
-nioZSxX9STztBms08er/7DMadC6NVUTBpgoYB9qN/6TPSLv7izADKdjaylwjmmheKl+jMFUeDNjN
-8Prp3SCMrtHjIMSiU7cf81BqsZ2IebSB6tQhnY7p7hPnNL2R0pO+DkaDQr2RCJ6ysflpT5R3+9c5
-6Vc7JvbgxTEHY/4IRZTtrjrpQ+bW8ayfEmGZ8TRIRoCZGEDYZ4fu7jRHMMOupiBADc1eNpTXhyyg
-CwWThA3rYIByjMD0NjX1atVD0qh1+m6QSgo0o0gVNKaQKQVx9hzE8qHRaXdsRbUHDtDjIKcaRKvR
-tJtlHh4GmmiaJ6lzesvecZhcESzBfkmQ97lJnKGMimcySpHdFOW+kdqMZzc9ypdpTHBXKnqeHQRR
-bytPphguU7gNGnbig9jhPMLzay9aF+JSV2WEYvrUyoPTTEF3J0aG8CrXtRjixU7GxuXSVa9927a3
-1VRBJzAGrc42U7KEqYtGMDwoC74Fu2otOlF6PfRXkhJkmi+meXc/hmYXbcZgZEuek8MG6yuee6+V
-RMwcENorfZ9TicOmJMXJ52JKMFoqTRNbV08XrLJZauJsaoPkvgs64wbPwUxiAVCtV3ztWeGQSFTX
-bmAE4zMHhhXfxQKZbmP6QE/44DKT/jDNDj8EXxQ4kRRE7+TEop6WhCgtToVBHbT2lN6Iho3aqrXu
-a5SSlVcObxkscNlqEHpMWehKMRJXzDEKjw9bVjpFcTAGps89PrGbMdSw44BLw+XGGxLK19RYFuMK
-NGygXQfa2OOdNvQxx+AUL026rVspYB8hlnO7y2MwsraIaLN1CnWsEt/Upa7FjieV5aYUelHbmAaN
-mbTTg9IDkAyebIp7TBZSZahuJlm0QZUibyhomznt2RADV+oqdCMrJ6uTbL5NzMrAyYNUFsSaysJN
-x0mWnxVKqoUbShY0lnYsBIU+7kBlRQDAZtptSh6SHdLYolNu5TS5TCMYRq8FYrOtunFS91KSdZRS
-A3Ki7plc5aM2SCJjQRCzksI18AWUimAMjD6CwW+M4kloBT1wsVhJG9Sxc2ZHg9bPG2mQGumxiI0l
-89nLk8FZiQPV0aTpx1NNjvFLbgwixIeaPbHDhnbK8HVZZrrBNdHPNm16CyFxIpJUS4qM+YKdmb1/
-kYRVsilFcqTsSMiig8E2rXoKqAUeMAfJopPh/D/NoqkIdmQJvEvoaPlVN2V964yjzClNKdqIiyHM
-yTnlWHVfYwG8ihFcPoeyQhcjGIYWUYPKGNpKVto+hnkJEVtpa+mZXAVB9gurnq9ZuJAOhynTycOl
-nr0z/jJQCNmgvCSCMj81Mq9H/cEoHoQSjbCtCcSRU3Odp01bxUvr5MWSP5RymhKgNFjZQSlxLnkx
-Fa5rTolB64XK0D8OuVBQoJ/qavFCudSAmEp6ucVnTykCTbwinizOrDjgFg35tNBEQMPT2qDNoprc
-DahCbfA9BAagemWNtcAWdTAOtiqO9Se7/kZhlms4EHPM9yv9O+0TXxKkhTVOGOrv42TWFl19k+w+
-xilCubIhqnXBNTE7wIW1ln6WlKZ0VGThSJ8JL1DUlsq9CSuQ0qIojbs5ztSEV6yU1zpsBrDxeTkM
-V7TMoSGkuSo+trQJqJjJIVStfOyrY5VXKsfORlLLbYDv52Rh8x4cZluzHLBkjc/DnJpuGGjPFKVD
-AGNTnlN+isCZbqqiGHHF4mallkmbyUcQQiy8klVQYvCMgoLqlVGeWHjlMd0KUTfGtqJ207gVDFGh
-MqaWeBWZCKc4rAEt1qrcHvNmZu9WphOuQq0MW3QD0A0no2RUFZqS7g3Ruk4UNTMOqTxMWzw7iXBl
-EBFIFWWe+nNg8eC7pnJqfRZZyjqt0Bm/T+Y2BTUSCRAsi5STxT5kWIV+ONV6xqE4oH3Z5NiSNzwP
-isheshHcl2XE/R3OTCH1yQGl5FaoBQd+lim24hNd3NaJ5kwNXFHsKPvxiGafLbA9vANDtUjObzW+
-IG7D96WIxBRHZVXyw1Nx9ia51uTdTM77e9UJMx1uWcQNsfQ9LhrILCv1sco7HrUp6wYGnqX7PZX7
-v3u9n3l+v0Hx/v1O7/ZHU7zmb/37n/3zv33b73u9ldmH2FOyQMH/RgL8ea+HL555Ya6SM7ZviLl+
-3+uJ3ywJOzuzlj4jO76VT/uHfd76Rv+fRc9gZ3aRlf1H9vkLJfufirJ11yiLxoW9LIuEdX+l4y8h
-ejItkk5X/ssx9Ozdxt75R39n+/7Bv+M/O3vDr2zP80Lb2W/3n9vKGe1Pd7vdfo726fwLvt6X2Iy/
-vp8v0khVHIYg4f24T+69v7E9x9u6P23Hb3/7bD8rVjW26z/Jjv/6El8VsiViKynmJQ7bg/3ku/5g
-2zv7eePbd7Zv27ymu3Vc98pxr/yTY3tX7i/egczt+9t38EVtT7GsVcVEOh3848vOv/e5vs6rs907
-51+8kvQFAPKXD/s1TK6VEUSgBToduMNXfLr1vq7/5d/HF/+wdY8He3d4Ofgvh2Ntu/7h8PLCO7Kv
-Nzv7bne32W02G2+zubZvvK2zd662jITn62tn69j2te3cbHnX7pYLtnWd05VjO/bW25+cqyvXYbhs
-//7W/Wp0fM1Co+KZyR2jw3dPT2/H0D7a3vMNaTi/umwXRP3fTAsTmejP7ot0MIwBINvpyj24rns4
-MiUOzIrLgLT92j5yz96YFTYX7LD+DV/IhPHvbP5ox1+u44jxxHSyb2z+il+tg3m329zw7+2Za+nu
-ndOB68Z8O/jr3Xdd58bx/Z3HF/L7/d5x1jHoHxgjR3+9oJG95Y7xPdwv3+WOXPGFXP2nw3G9CUeX
-7/n7S/7LAbTOpp98KGYYlILBleAl+Yy8O3tzcHeXS2HzEXhX/M/5xQ1Qvtg1/jpu1yn008suBvKH
-cb3TT1zOw3nrrBeBX7hH17na7Q4MuhcG7o7/u0zh3cbzaptf+lsu6cHd+i+27z75G99/cXfHI7eD
-Ne14F9r2d1Y4n6vIffL2TIgn+87Z25fRtNvsjru7H7vQ/nG3/tC3++NLbN8v9lto7xhuu7u74x2/
-/fGDldK3mQQ3ZyYt/z5tz955+8mN3W7P9v3dbjfZdmhvmDXfr29uvt/st97Dbr/9OJ8cb+OcHPfg
-eN7ZtV+v1zvIODszW2xvv79mEdhvudwu685lIeKTf7IgHVxm13br8PF2jJgrZ+vdMBIuX/h45o/X
-+Xl2r05PT657dj5+MQ7+jFn56w35wldtEUNFxnpDWEKeuBAMBOfaYaA62yveq+P86kmwCqf/bpU0
-v4idcxK+wKDyiscdw9/53O5imxu6DnRm3JEPybzit0wX/mHvufPrb92jf+/e7+4O7lPJTd/YT1dv
-6/zhDR839ub+dlhXeKbpHYPGOXvMMq+yvZvXxN4zzvauK9vuiZXwxbIfvJt1Xrv21vV4FNj7dTX4
-xQyT/lxt+euV/fLIC6SuThY+58F9ud+tU//897dOFdfJ8ner2ZcnHs99Tgy8whUD58iCsz4HrtZr
-x6dcFyCGFgOJ8cXMYaBdcakY3ixb/Jbrwd9tGZMH19vzS77a33H5t/wtzw9+zUxwmFMuz2t+JD9+
-/RK/5Pt399w8Fgvm3mVBXF9x5zsvfAlvwXa4C+uX8xvPXqfTltfla/mJt5sjP54pwI9iKu923rra
-Hg5PLs+r3b3NheJ7eBitI5CVkzfH9/Pz1h/mXPMLlogD74ipyK6G+/ro7dcv9fY77v/NZdXiU283
-JR+eW2v73pbxvK7z6xrOe9vwnXfOKz+VSefsb9apvV4mLtT63QyMnBWH2+Xwx39/y/489AkmQPov
-60Qik/RBFMFXYnKsSgHwMs7loT6FN+EyBE4/5sOVEGkDUBawKCbi4l+86J9Hye8vimucOARZRUL3
-ZaVHgNQRaQUwpwnk9ETyTuaBsDF/8SpfrWyXj8aW1qJMySf76sNTqCng1+ajReYo0XuzkAjbC4B9
-2mBF+YsX+xcfSVIVzVgvJvFZX/cLmh6QPVAjW5PmeATFmgebUtdy/+/v1r/4SH96lS+bhaYs8ZJp
-vMqAPNbOx8q8u7gjwHwEv0i9+VcfCK8coGyVGGLD+PJSfS9FOnZb9NKGpW1G2i4omxfjVx9oLSb/
-tGKsY4FIbomTy5pgvbLqvjx+M0uUqFFDOoSPAiozMlIArPIifM8AajwKcYm4KELtJ/hkUQ+HTh7k
-DjxDIIK37jKURDL6c2dMyXUiqrbXXgninQAIU4hVbJJedRryhT50XmVEOnUvU6inzbRQTnXXHhm8
-qUpM8lM0qcjtgG0GkoOpVC1sUxDL2s0srjDao7SfHORzHH/pTAGmNLNU+1zKsS+8vGry7UxPjBAF
-PUXX2we1Km2sTG4fR5Bi0V6WB+oeYBh7Z+qX8aOkodg4YxREJD2jvEZPO+VgDkcBhQ0yd5U2VSe2
-xRG19fRIHgJ5FBGFa8jV0ahZdqSPzB4F5Ozot7S/8EerMi0+3HEhpGsd9blLs65uXKHRoOo1wKgy
-J0Yh8AAUAeFyDrWG9Akychtv0QNa0/jss8aThdp6GqKsfi4byJvYU9ZgiSCGCuHElHUtT4ws9TBR
-QpSR1Va1ZHcRIj0vTc0I9VyWWh+L2FMrpDyoFU4hmchrqXm0OCPEPEfChu8yPdSR2iH6g46h+eBB
-k1M2YF2xm1LUP3W9kj7zhH4y9E9jtg4SnmXVmyEd09FDDX3TpVKtbLMyRhBAR4yIiD6pmiPCnNG0
-VepIr4UcVucWyPezUdfZG8pXLCxGQ03RrSkhIrbRxeQwSypZSmrUhe0DduEo9HWk+pPTmVOKwm/S
-6s+iG1BAJJ01MrVltYi9qloQYqXDpDsQqHkHRVpG1wllU0qNNDEHF6MEWDfTSm+kAjs37YhUhYUT
-riXUmPG7GpDp1PmKNWYUmgd5dsgqaQ+DKWKMCOscGbRSqShMBYRmet1SE7Yyxcq2OQXg77A2tNjN
-uV2L05QrjBn/dpFQ8ocxYXOrrHPellXjzyZhHl5Tx3HojAz4H6qim4c8CREtzoUJ/DVNa2pC2dh1
-6baN0umZhClwUlQZ8uuZGHIBtHltfKppFao2Q6ErblQttOQdhTekA4GUDRRZJes9w94C/2yJ4beZ
-cZffCVrVpPfTwBjx6NkIDxjeG8KIyqF2m8UUTjUgrcITqK/uU63IC98UTGLjLK1ba9nMotnWxTp5
-LOPaMl2lnWXm4gpJdcCWBgeUg1puZ3k4J04V4HNFmoTMHnmJitKlaUyultQl7Uk3FcxIOD+LEwkX
-BnQJqRiibUNhrLnu8RvnXkLmr+gGhGZEfgPHdrSHDo2/LZQG6LKFxuoZPrz1Hdqd/C4Fkrm4KB7q
-c1s0q/pqHNPKbsDaZY4oT/K2CyBxezUAuQaBn5Ddrpgz0RaVIiU9ZYrll7oMzNSdayRtN1OxFNeN
-QXKhLQ+9eId+nKXWahEbYhLONbCCUW3xyIJ0Zo8TVeQWAQRWCMBr8bZOEIjZsVk0mVv2MewTAAYr
-sERJs5sOFs+ID44IE7edVKijo5GhuKSGHFtOBhLoOaX4+4zKL19cEYQnav8QPoeNQydMHWE2ozer
-rqhzVmrT524ZxcF9X+LEafOcO7FUy1oolyrIJC116AhiUIrFHY47KYjMqLD1Uc2jhOfGf4KE6a4C
-1AEUpMVlukeXo39MbU82oBRY3Q5RvGXYSh2H99agxC+AM+rHxhiBeCnhLHygmxlehVTNZp7oonJW
-64wAr6Kx4vc6Y7TahRIKDyJT8pUafBR5GvbyQ0ZlfrDpy+QlJX3C5vFIxOWDMZkRJBBTbcG362EM
-4S/pnwPWKdnuwzF/jBplvO/ynqrntHTVXWQUymnMkjqHKgza2auTILoZhh5N8cgTBA5H3pgI8rKo
-RgCwRGT1Bg06KC6AVfmVhP7NGWoreEDVhXNRSlLzh5pp+Rn9hAQUtQ2QmOhiEKabGBnqthGgQm2Z
-Pzy0YtTbN7FVyT+w/7S9YyoBdohQxWYDs2Rpdhg+tAeBLqvmd5qo+0lUqcXewIyODJuQsu9FyDXi
-utf9DWhVvd4FYjBTmi8QVpGlA+pCzfWEHpNVQaUJBowinlwJKm2GrLqaU6V+aqOBsm+J6h0Zb9WS
-6qMlKV0DNQO+iv+7Dq7WlLJ6L2Co71Yy3aSSG493T1NQALoQKKAJSLomqZvFGqbUyWkSRK5gaqHh
-o1HXH2EiAvkaaWMGN2mfF1cVa6Zox3WP6UJeG7zdoKlP7aXrm1QaWjBtbQaPTY5CSYmk6Hsr8tac
-eO0bL5cW8rB2k4V4yWpbpxM6ujBiAPJbl5L1cClfQ/qglC1eytpw25g/9aXcXYMHeGfhoQgurvVw
-WJmUxtExUSYPAOq9AeVicIm4YyBNDNTUQfFSXk91hhtt3LXsPl9K8OKlHF9eSvPjpUwPux6NXrBW
-74XIWsm3IAMjoh9B723wPlLsD/UKQVN0aQLQRVwbAvHaHBB0PoK70K+7N9qZaMtq7SQIl6YCPyq6
-T8xgkh0D10t/SPDoHhtVyPGCWA3W9mKWy26DG2wF8+UalPScoCzuOQBkgcsysOejKgwE0RibxdjN
-Qw6iu81bXd62mty2d2HRmEepm/UWfU6YXU+WRHcSK8twnqekC3yZvKGHgIEk+eOYYD3Fw2aVyUjj
-oVD4kA0Rvu9GhbrNncolepjDmAbYsKTHWa2UU6xgQ2DAAtKJZnTNGUjlwk8X5QciSG55h6nwZArs
-+G3I7XA/QzmIz0ULUNAZrFgX2X8zVKogNjN3lqLgJanodfh6IySABeehc7qy6DIvV/tRt3P8kZaD
-UKfT7BxdVI2TFeCGm46iWblFPLNTmqMcNJOZGs1TY6QrrCxRGGYGk0+Cvw70sNeyeFqVrEhH2X0o
-z7go6xu914LjNJeMunbVYY5IMw9DO48/LgJOnB+FCT+BvAD8pUXQroC44joxm+xF7cX0o09FJXRp
-rZa3ot7AzNHrgP7YKFrtzDO9j4df1Aj+su3nqpFqI8kiGkxRlr8c4HO0oG0eGU9WnM5urbAZmvQ0
-/cWL/OUYs74IUY9s+OkKwO39854fa4qqJyZPHx6BlqfUirZXemkJHbWJeVhfzkz/7SD93EGCgcxF
-/vcdpLu4/MemeS0+fvzjo/zHuc9+lg3h8V+/+/dGkmp9o1ekWoYpcjL/LXvwDzqB8U1XTWsNINXo
-M/3cSBJk45uIgGHNl8VkaMoqB8Y/OkmK8o2TpLSClX4TIhn/iWqIl/pyZgQkpcqKRdgKOAQJHeOf
-xw9/iaNsxq7bKfqtXofVUenHhaVZWJRMzm6HbGnZv+i52kI505EcZhYN4KYFDymS9KMTbCPFc3OW
-rcLkeT4ok24vJXp6BDEYVm+XoBXTllxQS9MjD7/jHL3GCHEtdYf2pBIeTawazH9t0Mb4IMJ21Nhu
-LnXGSUzKmoHdgIFmiODBPBEC09E4EbB9GwytCF7GoliQ5vbTGtN0iWxi0SO+qb5EOalNSKwTe+PC
-OGjsiW/UsQS9Y6wZUNOFET9dePFtY/ETYyyz1+aFKC8qyJmzXBk/l7y1wIp0wOfTssTSjf4GJr0A
-a9SE4weqvhHJnXPTFWA/g4QiwyKx9HfxQrjPEzTX9pzF1jnGH/oYrDD8OOjK83wh5A8rLJ8Ebb6L
-HVtyZpWvj4ZRs1PgkRQg2QK2j+EvDXwsyMULe4TyIQDIKzi5FjdvCk46xS5XcH/XdQ3u7wvPn5A/
-2P5RLDamTdgHGYH016erZQ0CiBVU4zYd+eCjVggKWEQF9WdmzoAOuikE31NPcXVrho0MaeGSNpCB
-v7nGu0sGAaxG4gi0FaebXVIKBB2BKKGHMukFQlwhmE/XUAM1sIbH5pJ0gJuH1IOAj3ZOLlkI2iTK
-36s1IKFcoxIIL0L5M68BCoAyyVKI1liF+ZKwQGAiaQtG0zVnnY0Mp2xVSI5xRzCDCHyfBIKg93qx
-br7PiEWvgzXKIYwIdSDLqDvESZqCZLikPkSXBAjhkgZRXZIh0OVk1ykC9d7O5RXH0VEz4WAfKcJ7
-2BAuUV5yJpo+InIiXsMnLKpgXj2umRRsZsSP1CSoIv8tsyJeKCK1BmPPwezarMrqXDvMYabvtUvu
-xbxGYGRrGAZyco7j4aSRrHJJy6hJvSD8op9SAyYxgRpIhxGfNWvMhj4a89FAgHPdXlI4BOgV57iz
-ZBDUl5yOFbdT2+IlvyO/ZHlAHcYbHk0KfoBUFF76NfYjTAcKLUbbp/crLPJcopogFGUNC1GrlC2L
-eMkQES95ItklW6QpchRWDSUFO8Qd1NtSk2d3OvFJb3LL0c5NWsk4LmtuSSCGeOgH7Mv3Gbai09gM
-+DzSMZNvNExhxFVfQlBGaAGVQ6hS+AYLo31XQ1m9JaiF03N5iVHparEE0XaJV5ErFMEQJ8lcWdNX
-WmkNYmmmHmF3ImBZFpom/Q6ZidCWAhTzawvqFgYtOPz3wVwDXsjf4QebAbkvEHCJgOklhetsXZJh
-1owY6xIXA8tPukHnQ5RGDTIOgY7ZoGi6xMwEZj2HLuoaeS9cgmg6Q8yINm+Jp2mj3ozQA66xNRHc
-AyJsAB+/6RwxCX9s15AbTGRN4SKvJvxGXHNwuI7mC4ks1lMuIbqzQyHtJq8Lq+kRHIN8r0lpAARg
-TdfJL0E7wiV0R+jhrXlNysVxsks4T8WX3CEBJbKnIlD0luY0enYrwyvvsn/PA5t9OGE/wZr7M2VN
-OW1W7WqMEq4aB4eKUQxwIR+WlaVuVhu9GkiWUtg3IHeJJQBNyVxhOemVBLVY2KAr7BLcuY4QZ/iJ
-1CpJnpoqje+tILVuc+yxoz1SjmLTS3b2WjyDbm1PhIvBXI10SD+EmjyLOEeZZ6W28l/kNHjTo7AC
-t2jVicoRPpKpxvXdvFcXPQcoJgLBYQmss9hTh4iwtgzypeJJuUlIzihg7q9Quu/asg0bJ0C2abrm
-EsnX7E/VB3b6WGHMRo+vxKzBxmCSFQSYSi6azxEu1nVc5x0Q1gaAoYv3FBK6KsfEJmndqmIk6U14
-Yss13lTEoUuuGS/SvTKhk6SggvUJkmVIjhheAEShYVpYpy4NFpxWcRoFXhAg0gQ2KwsPIzvwhyAe
-esmRpR6AvmTK/atKTgEpZWM1N86iidyvOl55+S0Om1uFPTPu+g51bD4tYM0USVC2ZN/c52nZMKMU
-wkQLYWBllPIYwZyKXx2EKOBcDyHq8lonIdLXYugU2RdLWQ23mdRaJ4g7gMssa+rkKwUi6SN03L51
-g26eQVjrnFB2crKeg5nd1rErGiHDIiGILRB8WOE7knrL8gSlWAPRMGe6zRG5fdUoHzP3YeT2XkWZ
-VHN4nOslt0JChz9xEnwdlFHAat83UuLzsGf3r008zhzsncg6tTQME7fCNgM1pzKTl6UlTuDIs0hK
-oKFyFHLyslNJTSfXD88dicDxPsPKlR/GITbx/KbkjivDgpEmL6cEkMuy0qP7RYS0xGk5/yDyQGr9
-OSI9wJ0nKZL9EF9ih5lmERoXzyaGbaNv1fE+yRZDsPOsEiTObHJwFyPJhGGWKKmAKGugRjOnTf4j
-KxCQOnifrTsMK5D26mXOD9Tlu6eggzLkkFynH2qNkoOjLHNF78esEri0GJ/vhr7EESwAXUDnLFXA
-K6gUTbY0WlJGYU7LPkogxA+NxsOu0kx01O0yA+AB92S8MgaqTxN5CKWfVFLvOLjwpupEM6B+s594
-AYdBEMFA/iLywGE9XlYKUcmBai4voTCKB3aeg3hlypnyMWqSQiKFsFZ/6iwJdwGgAJS2olgcZ4ae
-RCqfggMewkTFzSTSmd3YlIinaM5VWMeqyA0cRFG7Z7NnQFbudRbPVCQ8XZDE9qGW0y7mpNb3Z85x
-U+wUlARJnrxwDZpoOHVgG0mPNLP+GgEnQsqSQuiNEY8kKmRiW2KcrqcgwagnRN/NmIIzJsneCE/j
-0NVkUTfjWea0WjlpOWAWAi5knnSKZVwcoqCP+OkIwhq4/t9zOh7Hca6ixrFEeM+2IJTtLZWc4D1d
-69AOO1dMGuq0cmrh4IB4i3h+I+6NZsOjLBqSIp0Ybeax21ffs1AwiRWWq+g+Qi2cO6Fo1c+QIMl+
-TKqCp4RU038IgtTEWaaPrA0Jka7cZSwr9zXCyhyXZ2xRpJ6Upnchz7SfFmEAgxulShU74wC239ZC
-iaoIQCzqITGAYgers/6GfN44Ub0qbmOKz7eB2MJYgjsq3coM8sYTu7CBSdtUSuWsq/zsy4mi9V5C
-XvSrkZFO4FH8ygWf6llpuaR8mFd5rnZV7CPYn75bCuQjf5KVgJhHVTLrjVTWwgFJrIqCthVJRjG7
-kNXZzMgVwCU6VdKxpfX1kUKQxkjcSnw1LNR+28h6u0MTQi4DolHlaUlTQDuWMaLnbwSQv+yaEnUz
-LxpMxxyuTutrTOLGUet0vJ1nVR39ZMAL5/AUFh5p2dHfCukzpd6gX9L/xgqufbFQ6ZXYFyTvVpgM
-AkkTuI+pp6aCualqVYy+073gs+rkldDZkKi/J+dRUcnWGMJQQsO6wLF+6A1e0W3wctJTqEJcvDFY
-04TdrvZf581f0oxoSf7dSfr/vDc/fj48X77896Ozrn+jVGSxK5EkVdaMtQv8+9HZUL7RigaIzoAi
-ov5ixfnDb2N8k1Bf0oKn38pkg3z1z6OzJH2TVAP1JhjH/xzsh97zz0dnTCoyNVjcNrxBzuprWPTP
-aqdwMkikIQ/YbZOhzl7/H3tntiO5cmXZL6LA0Yx8bKfPMU8ZGflC5EjjbByM09f3YkiqklStBvRe
-gCBAujcyIj3cacf22Xttm/pw0h4tjDjtejx2Clz7gAKM5HTTvo63MPBdxG7oijV9eCyAun1N2ko+
-6DVkLVB51gvMLDhrTTmVVNKl8KtW1n3A1IppPqa6TM5tx8lRe9bwFEQzXW+As/2TI8H4ZCMdogNM
-JEbpFgDEor9GjUzrfem1tqAnoKI/pQQLTedn8HtmBLwfQGkTF+ZAvMp2KEh+J8ljCbklR4bn+PId
-biRaMSHFTUB4Rwi/OG4c25hcQU5ohlSCHla9YxFRXYlbj8OtXYzu7ZSb7mnKwGnUZQ6VBAfkn4CL
-Q0ayIoke8iIoTtQX8ox36VK6zReE7dJq00vgTG8kBmyGMa9K3l0dJredEelVwgi5rdPuNRvy7MDB
-7l0Zw3agrWGCrWv2uM5LcYV+o57bonyk3whiFdVn93okRORDWXjf6tbPM3ury2I1XBRn5MAvPSpC
-Fi90Xu2lGKj6mAv7FcWS5p4iCr+QiNJ0QQNxYxdWnF2Xmou5sVJv16NGHmQ9piHDTMXq2bChIawH
-J4Bi++VOi5rgJr1KcbuM68XUaXSogiK/tIoBYCEpmNfvQ+TAFsnJnhjWBTwTY7dg6nPqwYkJkQ/7
-bAnCmPBZfloyO2HeKHlgkl2Zj/wq3R2X9/KagsO9WSubug0Sm7vIzdqj267gNgrRMlaL/jgMjDlB
-OHisBhjiO9m4Fyip9Y+VYfSAnB+Qzti6Y8AsMNX64GRi0XrJQ639Z6fOKHr0G5YyQdyllNfSmd0+
-L52dHrG2z89wgeR5ksNGB+PvW4gy5wQPxwMVcOKJ79A804dK1rp3Uha1ajxUA11C+VhwmIdjs4cn
-MQ1P1RxM4dENWbzCj+DmntN3w07b8mD9XemGGPJvFSCd3j+M0xRlwX2KRkK5bMpKujpX1A0i5Pqk
-zzz/WLRpFm7N0A55qL2/tqpx7rRjWTDtZpfSKIFAQmBgGp4XuNFrdiNwJRQO19GsvkwIYexJiwZ8
-d9vsKGQef4cIQXsfyvwRCl52kxKq+yXU2r4llSB4VizLpYuW7Cs7YTgYE1TQxzFgddF3vFiqHdMK
-aqTqDyYMm+eyz/Vx9guPRS9R1bPTTeLWlPDbGfZb62MNtblJsc3GYvaqxxJY573N7fCjTMgs1NAz
-ftSujk5MZfKOpcxqo4slxUkB0HleZ/T+HTF2xUDdAvofJ7+6EWu3QdoUOv40UcjJCW4EcBdyeXTD
-GHHPLVu9YPJoITB1EX99vR4V7UDgxyJ4gKjr9WHN/eCaj4vgZp4MjxOp4Y3R8OoBIb11lS6rXa5C
-qExJZ5iGwKY9h5EzxEhaBfP74P4KZLZ8oTgaIqKl+vbW95yntfYUCyE+MELm7gu2oupZ9qu8lRTl
-HLIs9x5tz3jvslnrgLGQFO7k1sF0deYOFg/jEq8jEST/j3Id97XTaHETkT562vM6e58tq39U4Ovm
-nT848sX2M7WnggSUqpXq4Avl3eTw2c3upatggeRzvufGxdhPfiQ6cUGmdBzhEohoEID+SN1cUI9h
-W/095krFE7MsnlBj2F4hnEb0yywkA9mhZzH3MFXsoSjTmjqCR977bbSggLB23il4Vt9SOORwZqi4
-2aUNdeOKkgxugaXgf+eD/0pgP/pe1dnIJijwhjs2jcFLvswZEqltP0ZlW76sKvKu2Zj536cucp4q
-Eql3c1+CTGVyXWlvG9gNyVr+aW1+HFbxenxktnQPLCmLu8Lpra+Z5QbtiTJ7eQ+ze6F4dh4vPIsg
-U/VmMUfJguppdlq4KOEc3GS8V342rehOM5pnu+dHFbutvqjK90xU3sUetdkD/oE96nHl7135wxZD
-eMJGNpNtAqDNvwJta284KveWo2k52faXvvT1ObeCCQCQGH6KyaS3DqclhgkvvK+TmvS0QynfPSLA
-eh2ptX+CB4LYOVsgZlWSD3GTeLgu0s03ETn9gU6j1GDaAcEzuIX1OECZIMbpevq3DcP5PPdqQb/q
-qrvW45SONXHMu6IO6jtAGdCHCp0xrlYhSfIyGYY39PCMgurQD5lq+/I9MZyOweDgWzCWDE5suLJn
-Sl3sR8Kp+oT1C0yrJbp7Hj36xtYloX72jzuQLTkgSmrqVvkzwsIiLjQhhd+VRIquVWLDsJC8qhhY
-7GWP0FxvhBX/u2mgylQlAKGIjtz7OVfWXUC0L7YhdJDAR03+hf1p/uLzoT4pxaEW56lMPoCCJaeq
-Wu+MphVprrh+T05cJahVjVtBJghpiKGG5iEqggiS2vzRq6S/csX0vsgIuuDO9KHzDoVWxROn8Ndt
-Vfujxup1WMm3vfHUa++LLAkvOkzXRwCneqfUomNHVm8gz+5bB0BaP0fBjQ7s4q7q9HDsM7xHtfWS
-UQO3H7bI5rFU9ZWsJEYp4dyZBYPa7Jrh6ENI4Ufg9dznIulvbCWoeWKmP7EIKPdVMdt3/UTMuW+r
-hnhyKC58hvFIea4653YnrpnPtRzqY/sOrt+J6SHyD7VwltuumJor6lGPADYkp7m38nNGb+Mxcezg
-JctFdOCYikB/eusjKd3lQeeRescyqO+Ru+oXJ1/rUxCV/cmh9+dY1TQ+UmNVHE2eiOuSN+MDdgw4
-6+G4g2JtjnzOOoNRCZnN8V4zz6EcJjpQrsQ+t1Z33E2uYaUOWbEeg6Tdj1N4rkkOK5u9R/dNe78d
-gq4PMLwiLHRuPaOKlM10WqUwW5uhlzzBy0jf+9o+LXLp95NDzWsYuB9szad7YHuMO4g/Cu2bwh+k
-31s/QUy4q3jjzfsOgWWNq/J3JNvot5dww3P8oV33tT3wBdA27ocIlBFdtAENxXK4dXXP59K03SuI
-Jn8/hSn0RrbRAoUsSdT3cdTrpQowO6Q4qPjUQ2LaOYn9jqsGAmST4RJwzXSkHg81Ip8VEWoqfHd6
-dZyDW8zWD3uL/rJDbQ9wQiY0wMymAntFqOtn95G6QXipKCQUk1cIK0vxtber4WClkP005MgrA+r0
-bTL2eARb5cb4OoJDmpn612DL5JwRvLuv01Hgf0LwRWMXB2vqvb2qIdvChNWMcVkf3XXFmh4Hu2qe
-oAoyvY55cSqTKLv6VtqfFQrmczQuy6nj7XoRM81Mxjf7DEPwVXQkfamxEfvZM+IkFs+62j58x9og
-OIzglvZ4Ld19VmUpKXzunC1uk5u2cb6yG3ktZfpuYafY62ibM3UBHzyxbljWiZ0jlqfEm9q45amy
-mzsYN4nq1n1rOctz36YpNFj6YrIMVso0NsWxsvSXdaqTfZnyG2U9xu8sx35SZuNvz+vUoQd2ss/8
-iYpsItobogw0whQzU0FLq/qHrb51J7Mk3wWruOezcm/LHlocfidATWk8BCtoZ1ABuy7IftCGyiN5
-6t1jrvm36YpDBdX2x1BUvzV2BaGjh8VpmzPK6xI7FdyCvJFI2zb2qITVA/8f+daSChVReNckXbir
-5I35sPuk+W2QVaGO9JZzpoZIxGWJYUrmdn6A+Nkfq87/hgWtuenLtDp6Vi2PHq0+p3zIy2fqD+et
-yKI7BPnwauBg3nvV3B7bxj9JK6RDfakM/2wyce/LW7Y8AYY256vrIXjDTc55KNdvazdeOiorYWu6
-+wUhZ1eWKCft0Cq4QPTARYYCSCcqSYfzulHAdTOwg3ou6fk+ohHi3bNyQNWY967LoKILBFne/Jwq
-JyRc7Kuq9K90xdMvNdA/MVExHo8DCmUy98vOlcXwAlOtu2BxBNKdTxBuQ+ZwZR7DSn4hEVVsnSPo
-+CLZsdohzf6HUL3m6wAqluOrWU+hXTt7nZbjjZY5tXieBU1QPObA5A7+2s1n4MXxYLKL8Ok5r4hN
-ixDmW/XHCmFkmXtqBdsrp+54rru5fAEkqC7UadiXKVpT2DszTD/LYbADGhm6l/+1JXTZz+EftREX
-UQO/97+3Jdx9HzZfQgOf8//lS/jrl/9NXAnIqrqkFWzPw2DAf/03zCQI6Y6OBFO5pFUIdYVv+ndx
-xUFdEYKIq+9wzNvyH30Jrv8XWwA0CTHCUUUpCSL8B60J+Ff+WVzxMUC4/Ad31JanBZLyz+IKx3aW
-MsnhAC7zgE2vsb03lEJpIIrONl41ljq/x6ldvsKwt2M7rKmvi0zrXLQ7zXEja+fF95Z5D2FsOddT
-fmNhiHp3ZGlY74bFY1EaFBDjJuzwUrSTOcSW3DZo0srH+cA9pkYTxPG1X1j6pXGWjA6geDE+R3qc
-Xjho6vc5qtVRD/l8DYsCbBW+Q2a3ZXyUbebbJy9ryjcMFtvhSCL9CEmoE0dbpoUTR6aX7wA+uzyu
-5TrcGpMVH+gkKAJjla9wg9vmFyoYP3er5UcG5AB2lvvcMAqqnb/W8yvMGf+tH7MItNhMTZ6wPBC6
-Hjb8aXKg3bWMxrush6eyT/pU4AVc5h9FasKTH9kWF97Ff8Agnd81WB1Yznm5uaQrlcNck1pLfO0x
-/+8Yvj3KexOMUjXiCRcYMJ0+VY4P/ljMrxWgzjdjiQgg5paJt5NZeRwmE69YOK3pL0PjrMfaY25u
-fezt68EuDbS8vKScjtobqHqFBYCFptL51Qam8YuKef6CBKWo8YTG075MQwgjDC/5DxQlo47ArplZ
-sc6vN9PE4oAdVeDQ2zhvDbKhtIH7bX5HHLa8HowB9T5z3OKl8qAF08zspL8Sz9o2NOOSL4deb0Cc
-Ykn0ENuWP12Rk719MyrvI82W5CH8rJOkf0s+9kkV7qkczzHXy7Lf+7aBcsEvEtqJjW63UP38vgRA
-3CAfTiy9cUg+Av61x0OZj8wgfkC1Q+DKfs8+qnlKTCp+IvNLcP1b3aY1O/HQVz8zq3yYuERCZQwb
-hydvyz4w9e3qglQaPYSlp74YVw6nZg7Tt0UC6B4Hev3iZe0cLiNWgobEwZ5cEp14950TNLci0/JJ
-5WDsa3f+bVHWsEvKKX+fAYcChGctb3tV9IFSLt6SyfGnXVB57VsPfu7Q4p1/JxjhqQsUG35DSTuJ
-A0C5+la4rfWNArbIOtulwNLaD3XNvocgxgFPbQi6kTeqXQTASbmfA71TpgwfmmDitzmugIR8z5iv
-Xm3GB5WV+C9Tv4QYZyT9FgeGdWoAP5F7KcLhQ9ptIL5SaF0e8k9AH24JYH1DTwzhKIswl9feH8NT
-yFIeTcZsnD+bbmU0CpsGAHQdyKW6psVbUHiB8hnNJydSw3yXCO7gLxOOSzb7OlUxoJPpkd3JwI+Y
-gySjYqQ2V5pA3ENeB1vqwc9TpDOX2yE3Kv97t85ls+/ypq87tjT+/ISi6/9KG8CuGCTXaA9w1nnj
-1GX2qKbytLIScqwijC0xQKkYAioeclWpFzmXjtxNUmbgSvM0dF9tMy5PpQWsnnDUn2CSQr03FDOo
-G428JWPefUn6yDxScZMYIcFwg9g+DHMSCRbfvCKcGnwu+0IH6fNUh3zGN14OS1m38T6aiYAFTZcb
-5gJLxqCOk5tDoktgSIKYh35Od8RYpL+4+9fhOeDSGsJJHGlMK4oCWkbGFzUXWlf68iyWuhoe8IU/
-2QNKsWzVV6uMro3XLs9sh0ZmwP5bnSbt95bagGvaIIYiHIqzKaml2kFOSopnN2rlS6dgCR1YJvLD
-QjB/7tzoKMVCG4nO/rRR0+1sYJE/3RC5eBU+dPTU1/VXA7Wc4unK1iouZLus5ybvw8PUofDfFnQT
-eIeeh0V2qoa+SGjn5BY1YTwwq4hrLBbpZlby2U6JLKJdkDYFaClzsEP7TeVdJjS2gUGvszz0zSLD
-uF+iby79CQLx2B5r8B6QPdB8fP+L7VFJR0sC8mhXHp0V5ksoNTkUHtrI6TgJ0lipoOguDL60+DQ8
-pG6DlHeMADNjn/UiWwsKraP10VL6CJoYX2sWWPZ6icbGfJvWVkdnYOiKptK2lYAnsToglp0VJojd
-QJlsPE7Ob1jTsdiaXQAhg8oJfB2cjPAHyRz9vWvWLxSao3qJEcrOJXH98kFyLcckDaiG3gbtvjkT
-t6IYTI8lTu08RBoked9XF4ztSewMASAhbETUtw+U5XiAnt+4NdkbRo+a4yWd+ER5/UO0wkyMsXrQ
-K9PmnSHDwPXkZOOUjdcyr/H7Jl7LJdMl3/ZQ5hlnMjUrqBKIigWk/qxvr2Xls50jWukVh1IM0Y0w
-PndAfylvTDCumoK2rvIOSykxJzqI+YZlcEpvGXLEM3vM9XfXVNapUYV6szLRICQZ04sTq4HyVpDi
-+N0S9HxoDXerHxRWK++SqIjFeTNycJce4bdH+gcpTYEhi1yXqU7bMfGkrDlmVTc+g0GcvUsqOnI8
-WY6Fh8e61EuMkuP8sBj94T6XmaG0HoDXsqN8gufvVCpqYEgHPVOYTccwzQDDwA4JJS0OVZuc0yqP
-SF/NCR/eTncUhqMsp905zZK2v9U6gHBlWcvBtxMPSu4wgxr/hOGW67SeCwofelCZFb+Gn9Dj6vEm
-zAcenrqWqb/vQ/wkEGhs6srR+LEWLGO/b2bpJ/0XDhfZ94dGOPM9DI6sPbQoI3qfUlfCPYVGD3fH
-OzHTvMR9MrwZL+rdvcjHk1qQY/ZeFwiKUhQVsvvJ67LpMa3o18Fxt+ibsRvoe+HWHEpMKC02Aywf
-WBTnsYqOTWNAKRLewEFazJpK5DwbuuhW4/BQe4PbvtvXbjmzM8bQZGh/WXbe0BQcTFsEpClIH902
-aPpP0chf7DD3AVpD0XijFdMSmn60Y47A346erfYzfypVzlW0FHTzbCgza2jb+8RgYjhF3BKb23lU
-bv6Gr91qrxGAozMZmvBOrsZJSEZqU+4HsgD5haYjxqZmtvNXW4zBz3aA2xoX3C+XQz1WwLIQQiL/
-QN2uPojacXZ0toB0dtLlvXL8AHlqXphLMJQgOAP0reVp8ipEc8du+ICpiFb7nTSU9pChqPWDXS/l
-6wjrKT8FTVE354gzCwt82JTiwmSRgZSE3RcWzgmVHlWqGMfB3sk+KMQB+iQlN0kaoKd0MG9tDD/z
-lOHlohWsxW3PrmC9AYTMM6Q/2ya8ysbY527maQc3a0GjZUXyLU+Zh0+dspdrT4BO7HlHm1MQtj/D
-IKfNoojJpeyTRiy88YNj4omTPVQvLs8ZSm0Ry4InPAVflKLLaCJWZlNxIV1coeE1z3S263pZsxsr
-TzIfv1HuemkJBMLp+y6a/h0y1vvi9y9e4CV4lxsHPNO6t0psYz0dT3Hg+zGuXSQbb1ePzTfmrudg
-zG47xzqG5ier7W+o5T97Z7l2QxRcAgKO9hnoTHNbaqdrL0uDUWcc1z2guFY9Dmjt9s3U9pF+Dajc
-agI8PnbTP8/SuMF+GMuvRZXxrkgNyb+Jd2fRZohbSKkC0BdOV+BpgwrEE66kTMUrW85NkXXDo26M
-pV9tZxGPrcUbbE/b+aIubrfyNdU0TF5scQHI36wg+sG6aaGlRA1/6FGJ5DXQOUT7qbeC7YHXvosl
-mn5qv9+SvzOQROK3fPY2CJilzhPMYcXbqynsc+Ss0GinlR3ifhg8Cr2itZAHNTZ+gW1wXm/xFXXZ
-sQiL2b0u0YJK2kYa2WpmkTvQ+rkCCJQQxYWTX/s1gAZeUQeubisK14Z9OTJDU2fGtLOfyiz97jYK
-Oze/L+5ZbQum+85Sjo1hRSxqOXRjZOTRT2z7V154SPodnjr1hmhTsEzVnXWLD9tlwTXXsjj9r57w
-r3oCAQL8Cv9eTvg/5fe0+d7/owTx1y/5m4TgBX8BOiAld/TA/2zd/C9/hhdSriil5DvYAZ6ALZPy
-dwkh/Av9h1LYtvBwduCzRF74e7TBsf8CPUsAGdjyDcAGwv9EQnA+KUn/DdDY4vAIGegbAhwXPMx/
-jd13KcnNJE2xOU9BoB6JPyyAyrGMU4a1kgYbxnB277HFAd7s6Orl/CQYnZxW+nvoU1pqzNwrMRp2
-8xKLvr0LIZf/XtjevIiNg/2ixpCnhq5tjFRUTLzMJJ6fU7YfJSZXVH/iULq4sSJFcpDWZPYXbZ75
-8tD1TZmfbKiot2oUafPqVYP/zJ5N5lsh0ZyfbZ662XtUOVoeicjZ09GB6gm8kpu3t/c1xQgHUUiO
-FI9KjaGQ0ZflMx9Mzo2scLTFhqH4Uw8+WXl6M4wRDGFrixiHgT+UMexX6V7g5XX1ffCZSKZBkwWh
-ameeVltkWXiid3aFcqcPjfMMBKtetiBe0WCqdjtigyCvHQJYWxja4gmQ4uFf2vrgcgWioWiLTqvP
-FLUavIq1dpORrk7wx6yxZvTM9jRFFO+z7sPyvBp/co8bAnVv6S2yLe1tN1F8Jrk/Q93+lu/GqErU
-O3MXYx2czwi4Z2qv3itNWoTnMinxkSvxt+wzOo5nhhh5syXKsZYSLu8/g+YwH9eXYPCr7FAHA9H/
-5jOWPrq6/WM+w+qUUpLVmj5D7LhECbSvn+H2acu5d3+NvNuJMdSaU3O0D7dUPEJ0+dFsSfkUCsT3
-6jM+P+a6e2g/Q/UwR/kJFE0t3jnZcvft4ip66PgT/ANq0RzdYY/1HSidgf3H04X4o6LZtnbhlugn
-0GGoqhgtErZujdZ0N+GuDI6IYPypSCyF4dLNo3q3jJoL0mBn8lpJbpMHcL6SWHcNVbGOJoKmXTBN
-X0M665cLvUxsdfDcYT5Niy23GY5UhcSVsOClS7AG63We1rE9l+wC1xjeJSgJ6Rju+Xar6f+0ScXv
-Wo6Fp1XCH8cpJ2k9pCH6F2c0ajNdBY1743YAHaAraq2IQwbB6yBrgKlN1kVkErCB/PS8jY0QsP43
-B4SIgQYqFXjl2Q4kc2yEAEHZt9W0Ji6NxRA+9ZvxeQ7M1t9ELiE44dggRVPjM3gfRObUMYlFbPcq
-sFrnr8fDv21P/h+RO4/HiU/SS7gop+Sw/lmanEtrcNOVD3nDkvqXM/uKZhJeOSIJUvw1cfdvv5fz
-zwSn7SG2fTMBapZ0FoazfzGZTU24+gs0yt3UomRJnqpWHASyv+0s9q0L/s3jIIw5cz9y4znL3Uuq
-rfL8vwfi/zgQ/Q1n9v85EKvva0NQ4Z9OxM+v+buoLv5CYTCiuuNCZ7QpDP+vExHHIkQg3xGOR2ov
-+PxHfzsR3b+4YCFdeEF26IKW9BHC/34g0m3MqbbV3ts4Fh3xH52Hocf31/9wHnqstT3phYj0sCno
-Iubo/Ue/oj9RPIfTrWXRXo1flAFevB5qgAPuR+EFbnU2M4l/Zz9nXTdjV0R25ENv6Axtvtl1QSmV
-aJEjELGt4ciiO233RedP7IAWbv3fuTIFVybC0btT9VaJYNOjqR+Emnrnhrd5Oz9ajJfpZUaRzPZ6
-HeliKWdt7RgheHyPo3geGApxleupOLHoYGjsSJMkOxOEi6QBuO3Ut5piT+sZ4kCETy21XKRjTCTH
-om+kvDHRYn8jqt3whyiFxcjBH5hGBgM5kqv+BcsacO1irdlrRtZpoizJBRcb5JA3MJwZyh/rkmoa
-/9byt84ksW5tTmPRjcnJ69T8ulK0AJi1CF29nCw9OP59nRt6EpalUz9Gph5cQKYdLmMXDNXWM0EC
-vkk6JO084W+cslJYu68pczHdEhOyG8EF9d59NkipurW8a21CQzF7mi9nj+w1KRyOn2BlCGnbeQzc
-fZpR6ZWfB8+u7ntG6Z3fz19rySWy13AennujivxmTnkQ3E2RENMVD7NSWMJU6U3XekktH/CsyhWX
-lSFSvyvV8sVWMzgKXIHsa4/Mos2FiSo45b5DtHDao+HmVH7heGWPeS5FJqtLX7Gj/OFM9CUTVyvH
-2q6K2PUEpVDUUgWkf366wtL5CoG+HbHccwj645H6H4NBKitm4X6hq1Wyz6itihoUiPPqBxyd8OCY
-tI0nP3VuEm3R9cBG/k/rDIodOxtpmVJhmQtdvfRr60Imqqjr4z1reK3KwBufsQZsShqGmeq0zDh4
-L3NTJC3gH79LzgS+DU1s5POLHptqZomnbugTWrUDF+sOl2wAVNzA+yW/afK2VxhOTY2bn5Nufu9n
-Lv95AUf7o+2Rmh4iTPvBB8l1qmG6XKXubdAIb96bAnWJG3U/uf3FsPlVP6XqXNeAZB9c7tcuBVhU
-uRTCexiaxZMjayyrGAn/SNUs5KUaAlK7aXFoKZnJBvixRIuO+77HobsAk78phPYeAfLMv1xjVXOc
-d0XxqFPO0Z0blSvQaBAik+Wbg+SNvrOCvtujT5QY8APzw19W/6MBMI/dJffjyp+KO54A/W702nK3
-kqP1ZpYd2NeqCy0X+F3LdN3jIDRwmgb7zE4rulDY7cdczghUsDXZwAjlER8AJcdpdO20Vz/5XJ8P
-S+Ee7IptmunamyBC1LK6gsacBCnQ0v4fCgXyPaTxp6aHleTn3U27uuuTjTyKET805FWGCLa0P5wA
-Kui7WvRih3IkgUwv1n2yoEGFTfFA+u2HY3od+7LMzuU0zqeqHnx+C7Y+Tx6zVOlizZD0cRvqDuwQ
-q2Ow2MnZAThEjtJ+6PjB9ohgzlkl9BgDTGnF91EzY/QLl+qpDZ0j6dh6IlCoIFREyPwlhsdJXs1Y
-vulQ6a03i0TYWDwCISHa5mQYO0nJOMemDpsDFtb04vphCWSLMUIUfbanq+i7lWwN3Wwwnit3hLvd
-NeQxjAKz0vXddbYrjBzd6J2KrrWAjS9Z9ryyDKHtDKEBlAJlJ2vV3QRWYb044+h8oBSX931Yhweq
-CHimRBE9owUdhnY1Ys0plxC7nBUe7dGqfll2OzPTzFjBKuSzj0AL7zK7q3vwbJEf5zma7gjEzS9j
-N+oLV/D+TsnwgxCLQ+XjPNyMKBOwJraO0cStbzDzZJcOz82uDbr6lDhpdWmk8Y+cAT88d7aOvQqW
-m8XpkpgPF5XFfJpIpIzZqTNbiJzVx700Ux/T78AkHJRBdM4HEPJdkKRPVekvD96WqCTpTM1oCYHr
-4qwsFDFPjl9xolm3jS2Ps/BxpnTzfIoqu3xrOtTGtne8+9S29D7wMme/GFaUNUHRB71oF2jNFia2
-6z59wsKovqoqp/qqW3ke1vM5WHwZ+wbVO8qm6GZoMuvc1rV5sFWVvPoJuLEK53CM5Ef9eic77Fxg
-1g7siCivaMRITtiuyjMp4DF2hz5/6Lq2uCt50Hywkp+viZbj1Q8tdkxsVDj3htYE9gmJHHsuHJFd
-tvhM9PhXIj6aKXPzWMhU0FpmW3iI/fUpyzQVu/T13UJWS56JMLwHbi7vqSrPLmEbACGqTOb/pvxZ
-HQbVc7v07TlWq0mOclW0X2DStnaAgJwXKhOy+wWveIWA75if1FYMm+NjwmpS+AQoec4MexlU9WV0
-aKaCoLYs5MBSXp92Du8CrSgZyGQv/yCYUT4lE0KQte11bKNakAL54PrUSnIBj5u+C+ZbllSaUB7W
-Vjo3i8EWDxj+uvc+xMsQF2Qbf+m80OeSLFOw69O+P6VZOT+2npO8NPmMOt7rsGx2QWQhI/e24YCQ
-83DPkrq6U7QzXKYVlxhTg3+XTT14+orAnWFAOxO/itjRjHg2nQUr0pDb649ylPYL7UIfAeXXdElZ
-+UBmsUfZ9QHsNEiX7/ZM4/ckWlaMoSDpEZZL/l30fncVOWAWv16K44I89mi3fQ8tSuLLZ7Ln9+cQ
-A60LMmm0vaZXQ6vmfQpeqwuCgHjo8tDwM9eT+w1NAjrUmtvncUHNpCPoS7Mkv9cWca5uy+Ro4wHL
-x9TEnp3qt26uHqWcvySaa3hYVPqast0/hHrFtoeGtg+Cuf4dRQXo/gU4QYmn1bF8bAlDRhPMIn+t
-22eTuxb3y9LmXK2XgS7VNftigL5sSPt7V25nQ5pcZ2kHmNnR+7yWm1td+Q+zn9sPtUjkeUhHzTpB
-2o9NxQ4GExfQNed5cr2OT6V9G07+PVa/i8rC/tXXfHrAyZBoZ6pojiE9AAc0mRrvbc1cR3zbDHAh
-QATMl94MHOu5a+18xVKC0xSNQxby0UgDSMfvv3NfnVlDL/WVtV6NH9nnV6X68FSvi/tTWzkjzjQh
-qGAAhZk1ImdMhuXJ57KZECmb7ETwYMJMgr3CnZIH9HjK6UwrbkYt8oPG3P+I9SR9KOizuJA5Zs+Y
-jezNGs/bh0yHb2FPdSx5WA6SNOJbpVPPRJha2qZwO1/BVA2Luc60nFwrgQ+twqR9Ru/M8BPPag3P
-YZKE9y1e8F8t1VnL3vMxle8UHJ+4Cbd3u019bxYntunvBM50onlTGt0Xw7QRprxs/tFruhB6EpX8
-SB1J1kOKUjCe+7TdFuOqXN07Hkv8VKGj1RNmOPVE/pNAe0qDGp+ghnG2cdCtD7RckHEqOHRiKAsh
-Ttyqep2SfPOFVNP2JyyKdXDvt2P1jkSErOAKjsie1kGSLmCpxTF1KvdjNi3buqitntKM1x1wI86G
-K/wJ/5FVpdcfFmphTrJDsbo2eRd8YXnj0ZWB0CTPDluTcdey+fu/7J1HktxYtm2n8iaANGjRBeAO
-93CGVgx2YCFIXGgtZ/Ptt/8oamJ/IZhZFeHJjDC+djWqLC0tyetQV5yz99rFCQc0NccxFSE1D8MS
-Qp4qp7iUqsJQR08f4bpZrPF7XcnLFXJJX2KHiGkcTsKuss/MqG0eFvbO0UmdtZp5H9l6VR9k4o60
-HfpaIG5mDrCECrnUnM5A5VgYFqfgLqeKYcJxa5HVjj5+I8m+geXC5ghdrLlQmgPrmJDHoUumNeHX
-xqB/omeVNl4kiqX1e0GAanHF3qXIz8aZUPRvCuZNhH3xGLOZQsIyzPskzgfjXAVyR376wEYc0yin
-C69F6w3SzrG/z+OQPSCksPxskR7TkLhOJ1ranUUyoC/awrow8TTHzywRvbgXixF1e2cs2TVk+O51
-UF0ijroIUVOCU3cqta6BrBjH9bWEYUp8BU6YZkE3YBVAWtoa6OBruyY+LaNbFCGIaJznVLMwTbgJ
-vDxEmw5y9A10t7BkNmGPgrllFomX0OQtffAjy1NOaxgXQOYQnm04UXbapstss+2l1jTuVaqy9cM0
-sRdf46iqorqU52k+BXfXPjRU0AhAEb3TfOcwe20L1TThOlrllQVOLdBViR1FdKPodjPu+9lY+A8N
-1DyqNywcwiCb0iecZNShJJn0+7wsHeRSyEbldCTtrn7CpkbjCXFUvFybMUyHTaXNEA52AATt+ZZw
-EFpKmp1rGOU7nX2LX9vVPBJ8j6tooxd9t0RulyconJO6KnHwUO+zrjnstOHXxp74HOSmorchdElb
-00FKanlkGFPs6zbsJePmjiWxIInaJjCSv9ZEk4WpRDY0Cly9U5UT2l2MyDRkcRzwRhQkRbX7ttZL
-h11vn4xnKcQWRPxLLrptBVOx38SsxQ0t/6T/ikGHdjOY2lw5w9OjXREn1idoyPrQaqxtI6skxRS6
-1D9rkZMihSfKL/UgorXiQEt9jg5ktlj59VBj+fKLPoq6WwRFg3UnIlRriBbaFasXdvahgugSASPs
-ZGOfqFm5SylmlXtLHxDmalbWQQhUxoS+uZHPzbAVlAtNXwULdOYQjfWSTIW80dW6uB/NabrR0kE/
-TWqt2Bk9+DH2IzbSdLl4ikFdBhPoH+L5qsQcXuq5SwtWOtnsT/EKKpz/C5tXAy7pjNbXyevxR2dR
-dKTYH5FpHkS0obfFKjcojZDCP21K5ClBxfZh3sYSfujK1Z0aXU5VK4PMglSHJuLyaKlDPNxO1lun
-OlJDiZOOYTTTCWauQaMtrg02b5g0DoPhO9bSHjiGxlfImOnVb/g5dBRBGhhGdG6Zq4Oa4ro+mmpH
-0D3WGSB1fqguYWM9sO9arW9IqfHBqcA40vwnvP2/dK83dC9HWcti/1zl235/+d48Zv/jxy0t3/cS
-3J9/9s9qn279QVVOIwbGQBG72on/Xe3T6X/Zrw0nWWWe0VcP8l/9L8X4w0A8ojiabvwpk/13uU+h
-gGjIRPj9ZV7Wf6f/patH9T5dpuZI1VAny0ZVLWhjR/W+uVnsNqfxS8GNwlOqmKP6PA1qIg68jmP9
-AgLAsbBSWUGd1F9C2wiWUt0qWnvIIwg3+IAS15orP8seGgu1ty7v5QhSQI2QqCyvCIsnEDZmx9Pd
-L2n93EwlcZW2REZ29b21k5M8xGcn5Zdj5dRYHwrPUKAoq+a20xr0Bpw7Ko0QPGd8YBIP5lDcxUsd
-jIONOJd2czSkXq8twFidi74ywErnm0Y422HMsUDi7XHoAptTE0RqTMYqsd9mLH830vCazt+usIn0
-RDYcdKrzMNIEmBPlRJ2r71qvX/Mhn3VGsoGdHLRWvEPuslPD7BTj1F5R221ShFiiIZ21RNwXWvUA
-4yF3YyM84c7Q60fS9H2sTjvzRqVHriDBq/q7rLOolnIe05YmKOrE7boaZanlgSrZQegJCof80aiZ
-XFNLt8bc3xayOFA4IC+cbhdc45ZjfdIPmFi/ofylLsrmhxAwm9qK1G7TWN7U5L7KuKQKCQrC+GOe
-b5cE8A8mL6k19mxc/aZV3dKZTywkpRTM9tBHXdOw/HJ5xFO0njjcfij3eo3aIvnaFuwoMeegSKCn
-AzCEQPOsJ+X2qpIR0Y33UTxtY6MMGh6ndRaBOG0ji8UcdeEMEWQ4tbA1mMj0GkLGuFbYHBtkplTM
-tKBSm92qtCnqh2Y8aaZxg3WkJ0jSUD15vOrFneiu5/SH1Hbb0mq2lvZNtAiCkxMpu1IFR2hnt0ht
-AKXqBPcgtim0qjRk3HJ2PFqV16qVb2w5eaC2EIQpTGfT+jJR5htQNOlJSFi4IbZtaJ8TNbujIru3
-LPM+FdVFtBj4fsddjFKQVEU/dniCXXiHBsZHhXrWhuI0jLpA0YwA9mrrD5WxVVp7zxe1xyWzjYW5
-t7OGklBzZupD0DuE8qVhQHOSpYPjZZt3PDj5XO3FaTwJrirlJZXtw+iwqTTU20rtsLBjzVhM1nXg
-KN6Mgwcx02aetZfYTrbCION7AOehONMXpBTILeSAdRFUS0h9Dnd1kE3heaZpJ9hEA90MvRyWBbpr
-8bXG9R7pzo66HAe4stqJDIqriqiftUoA0NZIEuy/RmN/D9wOQWMGmZ0Z4KoRcAIi4OSRXR9muQrI
-Z+fri+/nWrX2k9PvlR49k2h5vVtzg6+KJMwx2UCfI1y4Jbk4s8sSs45xbXfzc2lInIbjayYdZKrS
-eLfkdcZSaiW49wu97w0PenVo3TvjUC+b0Ug5hKANVLtvUqzbQ5Av486mXhuwW312hq7dkGVfIWp1
-MmpQwJfy2HyuEGShwR6Ss7y2X4olvQFcl3k5ykXaFUi79D7ZlxLlpTSDRq9KSf6kNkO8DcduuEqq
-5SYvuaA+rQ/T3LT0tzGkjeKOmWfbRCqOG20XmalvOF8147K8S0FEZ7AROrvgDLR4lhrj7JvXFmau
-bcuu3AL2YhJtN/RtPUobF+o4bNvcJG3ZUX6gSktovmskfSJHtkB+aSn6bx2NH7bbcFxJK4QWvsbr
-0TQvsW3pi3PdSAomhrF1+0Q/GKiAGgVOBFF2qq/AlbPU8jQ1x9O4M3ZYS4O5nPyyWH44+Fo9KRlU
-t6lNn9yFbVcsLwWq2spw9g5ap34oLkxMai6RqdcjmeHmqO3tvLmR7DAgbfUe6Nh2jHKOcwolLHmn
-ZInXmelZa5EROTQNiZBr+RWhrOj1AEjSbpkX2yUv7TmZuy9U/g6Taj9lscJ5Lz3FZnQ5Jc5eLwFJ
-F8uDoQCQhcpubsxInANnoAxZafASoKO5xtAIZeOksnNaNMaiYQiRrtm8nhoLVsP/9jmPdzEKjZsP
-t0CbtvrX/2ti3ETXj0X3Libvzz/75xZIRczDzkenDy4Te8Jx8z9bIOUPTg2mbjkrxPRdIjImIsxF
-Dn+KfQ5Kn1WW81fDU1X+oDfK7gj0i8X+yPotuKl6vAMyZMJDbNO0dfZA+D6O4bhZo+VD6Iy5B7jM
-tigQzOZjLPVdG8hI4UDKOyh0QK/puCkpNy9fUupxINsXKmaeSNYkAN2MeugbnaNFHmNFuqdDebhx
-VFmcl52l44inPQ/SZOBIxy6s+17VaQ7JJFnrqIszUbMf87lzIZqqJZjkspgDPZOa/KudFNVjJ+Ab
-0KzRtHETY3EmIlKOxWYGdXfZooONvD5qoydYz6APCnjcqASbAZWdKi/tPcAvezpYSz3etjKlFII2
-KGngC7S0edu38fwoWWKsN4Zhw3jMMwc3oY6fFjFQSa18xzQ9JDh5IlPZzXSQcDyNTaJCrCLVIj2l
-+dhE6L9VWb1WlwX6haukmZLclENLgVd0jXVWIBN0AssAO/9tykHL8FEn+VbSS2lBItO2igLLTwJS
-6o8SXawgkeW58e0xFQ9QQ/VrvBAKiQuzpIGdmbUs3yCWbQ5LnhrXS+HgZFSUUqYJnGiFggrEgKQR
-d5r1NczWUmxINE6Q6nV5LeMH/ko/UUbGOGfOg6nG2dMyk0OCmJ/q/MZAyz+4PdAWD9UXs8f6AGPa
-ojHn7DwZQpMOWa9f6G0bXnVduHyfh9R8dMxUfWxEmC2uMgG52HZlC0ldTAOdya52qFwL0xq+yYpN
-mIAZ663w8CTY3U2M3WLP3rNMziMMzS8Z1AzLx0nTNxvSKyoHj6g5GlTWGwjiwCjs7gzkCdgPpR51
-NjyiHR6EWoHyxB6dIqhUi/gyVhYBNmuWasBsUifddcscN16CngoKI/yCMwt2KHUa1oeJdAqrOKgU
-sXOQLmGO06TuxqskGy1kZrmmfANLxLFXrzpuQkQSRsK7wcuBc7sq0Wp1KkkIglgT1gsaopcaqbI8
-BnstX7NjhFFkc5RqXERNsDsrAw32ti1iWcbJ3yHbcVJ8V1utLtii6T3A7SgqpNCPLCWpvdmKeBeV
-poM9U5tlbwJ66GXHzQDT4HmaUr3ze6WxS8j2sfFAlIycBAn5suyBhJ5NEGEHUUV76peYKyg/96iU
-lnGMN3DChx9j35fQ/LBF3cMh5W/hRGf8qFrMj5sEbADmAlp2j5WBttkdSLil9Qtx4KK0NOCZVS9U
-8sHtCTOOiJaG3vJAgq81Lg6I97y1z0IH0PAmynCw4zCycfvMfRn7Bmbaa6vW0mvYxpVPRU08da2z
-KF8o0Vh3NaRLKPCpMc7c6q596uuqeQQVUA94PWzz3kFU3KOADQvetTmFYwbmCFcaKvr4qW7lDG94
-GVFCm+PScnyHzwBwwBImt0pddSeLXTKJvTkFX/xUibzN31y1IW+0IwZTG2dZjSMvwhYTmPn7s2RC
-uy6ZG4ZshjXPGBQeuBN9/k5b3E+Wy48HOxJYMfEbJnQv5JsQJFlDjgRWRAqn4IN0WhXwQX1FT78T
-gtH57Bw/Q7Svmpx313U81JEmxgkNS10MEFDxnNvthvqLs0Elka+mNxiymSmMl7VMuu2stNg3vQDM
-F1lV6IrWsu8SxK6bj6/9iMf989pNWnKguqnfmkc3WiyzoDkL9Tgie2mP8xTHtFUXPzc6/ygr+8Xj
-ZJ1V0XTKPNRXFdNbKRD+Mm3SVkh03DYIfmaBttTBwHnBRlI/d+yu3ufEIXxybUf5kKRRvG4VdBxZ
-1K7Atx1dXGdrlcOyisDA173Sddx4c7+4z7dnwr1o/Ue6Oy46Ge/jO/qLa2V/8p9BEVi9vVbbwv1V
-ZAxqG8TV7+KeL5vDgVEgNlXtTwY7fnWPr3B9vG8SMCnpRp2YGEwpOCIPIUCksulPBrS67seXpXx2
-XetPeTNU3hatla43s94QVO7VLh1Xt/Rwl/mPwUPr345u9Mlrc6xG/NsDPPoyU93MYDy9PkDhoRPw
-4DO4+B7c6rOR1qdyPOG8fWpHHyae8AzZxOvVGb7sjSete4fF9pzD1i3u758EgX/8HpTPhjuqlWka
-shDg5kyp3hMGukD20g1AobN4H7pZ8OmzO552jl8Tds5vn50zwR6jI9W6o/fE1+A+F+7JD+/67uNX
-ZP3R/3wPEd2/H0XHppqRx4Q7csvuwqPw7RXep0/q42sx5RWT+OY9pGGh6Mn6fZ3Wm6fUu/luBI93
-19onr/tn17L+ijejTNgR06pgFP0yDGqyiu7oSZ+En81QR3LboxfclI8mCwdNkt6st0za0Rv2cFC5
-z9YptuLdx49G/Wygo4mCbpAAE8xAakBfkqkQSfsZbjxf8UvP2BRu4x4a96R3E3e+/3hs5eNJiqPb
-+3s5ExmTtevLji1hS3/OvyGExf0eupUru+VWdcVnt/XjuepvKSVRN+GzXG+rxtQPP5yva9ix6Hro
-lrxqU2wiH0eo99liepTSerzgmK+JiW/eGktXerNe73Llf7sDBOAV7svJxeMn93Od9T76zo4mDyoj
-hEvU69VdqyftXXlWn2hP4QWKcHqp1eN8U5zE59qFcfPJuOss8dG4R7NIYkNt61rGhRnsZeflaehT
-3HEN7xZ4j0/S+8xbJLs/Ppu+Phn3dZV4c1czIIGDnDJut8V94I2bMtBOVf/Tt+ZX48D+WJEiBpXZ
-FSb79ptvUzsv5HUxpam2UbhGzXcYUfecQ+7BtLlsLwpvCJpA/+LsP7m3v5rV3oxtHM2dcZ3M0OXW
-a/TRPd9lW0zx29lH3LBXd+HPXcN/O29vOm/sN20mmn9uvQVl/K//076T1//8I3913Iw/qO0rqDOc
-n2UlXoe/wnS0P9RVIE+1CasESi2+0H933NQ/NFxlUGkME8cazbD/1JsUB8eZra3GNkdRaA3+nsKe
-8tS7DxIszqr8R+ivmwo+NvvohVV0QfRuCmpFWCX63hRRZ7UfO+AsVMvGkIDCfnIgxa0tFiRBqbMJ
-x3b5ERNChirQUsSLHKYNNXcj6aPD5FDt9alq0+tOwYd11MUVMGiFZC75JZqtTrvEoD8sO9JVB+ck
-hI6mTGbtGbBig75KaoTaZBpu1F6DzJJh0bJDpduivm09uhovSQ/0JMv66nZu7TV2IWm/L50uPyeS
-Gns4bIuNPWn0Dmq5RoRu0MVQJ7PD0tt1aGTk8trR9cGfDGBlJbjE2XUWBN8nnSaNT5RWBKU0m8bQ
-ZsBPTE18qoBSIKbA+5Oa3BUvi1VpY5qJULGhO9ZXs+9s5zk0Q0Tv+liNJP41UtxuBwqKaDeiEn+t
-pImxOYWgYcC5MUEPIoouHAFdtWublyUByOdBDsJHLRug5THaJotPwoR5qHvwK4MG2xsMYC0u9Vmh
-tGFlUKnuC4moyyJfc8Xk2EBEulASSHEVrDQ2opDmfKNLkGx9NAUoOOgATjeJOSaPQHRQKyZNBXZG
-J/IZnjKVmUMUrjQaGhyrHDGvDfOCfFD+E4nsiOJ6MLQxQBtDyqk8lJfWaG2VzNibxBfeAxxj89nR
-zBmQmpwKhHqYXIHGEOvQ3TYtkgcIFw3Cca1G+hoKyStR1PtFBj7GQjVHfkjTu51UPSNd4iVU5/ZL
-nCU/xCL2MN4vIQLaOL3wxiGRcTu5O6tqftVLbgoQp+NU3TpJ82Ll0AEOYzgBONAgLYSezRsfOGZp
-wvsLs5q+YVKGxabKQ/yTY5lmV6IcW437lI43gyy42gp55gnpnc9E5vXRFnOGGtLNKpxr4EvR06SN
-EWwEjfjHPXkez2WKZ34uts1g7IrFfBFEYmzsIqFXg0w6MpcZqS9OBEMcms76krEn9GzCGfcAL2/a
-TK7cLhYgPM0fxFNdZTgPDqNi/yibGDy2AWxYzdg6Qp0k1cULZ9lHnHyD3v8A0f5xsu1NJhkBug26
-rXXp4zTINjIRMG4fO7Q70bF6Qyu+2AiSJD2FeoIuvwgWTVWNbWFNzqGG/HFq43XIfdwAZ1M/HDRT
-u+v19DyTxlPeeHT54KnsYQuLMj7p6o4gV6lwkgszW746ifaYI9bDegOV6UqKzPvJnIo00COtvsGC
-qv3I6JQUh4y6CC+NZm7VWXvIcRXyjobVcEIbvXwBxDmk+6mrY7HNCVEBCT3p6RmlS+wTNE/G5ou2
-xP3FbJNUWuW1tAeCZ64KQaPq91OuxJtJbQeHBm2H7OVAmpx4oiJmyFtlJpAJ1iY7VqI1tdohMiQq
-rblw5QSrqpfbeeyswTuyOBlpSMO1kgSJt1SN7Dk5mzEY6EFsNLpzCOuGgkqOIgDpVUXPkKJ1rtau
-IBSlwwqqqJVXLSLSPKfJU2AAEVtVYHKoBK3GPNPq1sabVMx5kXop0V8OTkdQQ1Th0upxnEJYl1gZ
-b+baHqZNjzkn5cHV+FLGCh1Qi3icDKZCGm8gc/Bv9dTINKQIM7NKNLIIAVBqmVvKOMSjExnARral
-baOBLKMJ2hR8DV1v3CRe2YhiduI6MMIUKquuo+z8mWVpw3Pu92WSMPelaL1qotXmFj+RNg7h+U/L
-j4y2eW1PqMxBY1Qht9R6rVIDTRJdFxBMhjbO8azKzreyBMiRIuVpVs2yB3fQDDBqRZiy+v6BnOlz
-Rc7vQ5FdVCPMgqgxXMCm50LtEDYtgFFp7HFmN6dnM1zMSwLIJVRPOhHCQDf8QVa+2xgNg0Uq8ZWW
-4YJwPk2+ybVmrmXGCKppiLS+US+qcLyZhNH6cUYd1Om6eJ/iJL0oKWoFUozUfYYU56NTO4tF0wd2
-kqsedVj6lQimfdYA4xzPE0Vlcr3OqcCR2gi5AB9ybntDn0Hexc8QIElGo5fq8FSzZfqixEbhR6Fz
-qQiJ5G+9H/yYH7EHyvW1qFamj6nFJ3Fujxu1rvpgccT4BQX1FNharga9MT8mY31XFwp0hNA8axW8
-mvUs1ydjNMrXKXVanEvCxwZ+W5SZfOKIctlhpNMO4B+Zc8Mo3poGvgRT7ljuLFYRwSu+qgJ+KL19
-kDXYIzU/xVMSTfu2RJi4mOQ42MEz8c1K5LdOl0vkd3LpodnQbVWxRWR4oS4rtMhbe1nmzYIYYREk
-kLEm0NsF08LnNJ4JXf3WAsh2DdQMhwZ7H/0HzThrh2k8xLnck7weArSKzcSzzCTfUfVLsNfBy7mG
-l51c9IOuPvdxkdxF1gA5ScFdR1z5bOtXLJ/GTuTqhLqD70HBPjRuBt7rBx22k3AtRW62St7T517s
-Qds1tHe+wsohslSGB1XwKS8dOJ5uleBiZH1IRN0dsoRCujtGBfYVm5SVawUB0J02pfnXZmhwgldN
-/iBD4EjAVE027FpJu2TlADFNSlH9nXcoG08wwHX7vpT7O0KRxpehq2dibopsLB91ZlxeWSW6FMqi
-XFDFLXqf6JeQXrFT+CuCuYWItnyXHGDM9mKC3FdrKQCsIp3iEElsuDJVdb3K7NKNLhRkFEWkQDBF
-QNxtgJtq2AuYrHLOUGoIuDQld+8OJ8mLiVX6QphT2N9KdVOqGrBA8mA2gwB6Ei84gTZzB47dVZOo
-VFd5rKz7diLi65CJF5duD2uOdX1fa7jLPCjx8tUErewJ8nm2ZbFT/R7lUuMZY5/fdoWuWH6rzd01
-vJv8sRswfWGfbKJ6V/eIKeImnXtAW7bygHciZwKLMkIOiKvbWGHenHUlAbnQ6Kr0kqiZ+gkcW0a7
-qJy7hN85zN0Wlpl8OeDtP7AbknOIh5OBJS0eVZpVi9q4FkLIp9Qiq2ePvDcEkjaoomHnITl404je
-YcJsU5UYR3qf0ctoy2yY0PZ2xLRmJZ6/zDKUEwKlVib6wLQMnD+m54fNDh+86ltSpi10Oaw8vszU
-5dloxdeFM6E3kGmeDdkOZxT3bAEfvtfSrvZlmSVbJy3LB4JyMOXlQhNsp2QbZ4U1PrVyAeAfwbzM
-d4WxjA3OhgWMZNmFnp2u5UztUcamLUBMMm6lAZzcVufkwTfzSjQrZW2Vs0vduLXLlq1M2bziBTGO
-jRsdYkp2Qj3DRvaEREFnlffaqLh4JSbaMwqvsZ2gCNbCQdYVFe5A9oLbsa3H2VgTA0+jrOokoEjj
-UiDFx3A0LJ4zxcXkSapejtSqc2iKKWD0LwJxXnLXpMCuL4vF6errxE7ieWuWwI8mDZWNq3FS5bQ/
-qsiusfZABsdvVQBuQaE836YGfRskd3n5kgiccbWdbIoaPFhe9tZ9H+UWYAoL2tSFZGvrIUGDP7Bz
-1JKgS04a9T1iwb7a1jkhnGTqcTNAvC3I2kIhl9taYDwkcNMZX+Z+uDMS09oz94KWdBbzgsAAx3iK
-015XDwh0+3tdj6ugHcruESeyWYOT0QD2oGUMzwVrzYMKQ/MM/XNjYaILz7BjLAQ/L1UpnZD2looN
-DKMw8hY6VeGKe7b701jJAaoLZyY1jDW6UYNk1pC3cK5IjDvkzHBthINn9gvejGkJOjGDZESrVO/K
-wjKYq8piAPPsqBV90QZjb2WMLdoukwAoV0+KUtqSFafdSniJAo0evJuwmZfO1tC9TdHW5CxMKli7
-U6XgFuzSyc49q+zM5gm3Rwk1qBKtn2hGO3qIA7R6o0pT27A5W8rzwpEseL251qJAT+V57+AboxmK
-YSWlvwruyQMSrbPaqkjLN2LRRscPDa0aziprqfBTtkQZ11ExblpNlDTJSPHzyHLG7rluypUgK1W2
-SmQkVzt7ymMbF2cjw0eQ0gWOQ4gL2tWIZiCfARg8SQFo1sE/2orIV0/kVWKpRKqTQ9KBq0C4Lb5Q
-3Lb3fOFF/KMc4sg4jVqp5L0NzRI8F71Umr4mkvwtqaLFlU7r/6q11GFVDk6PgIHvW961yySOFMId
-Qo6co15qnHbUMQnGKt2HMXvqgxL2DvwzTeoOhPbh4CYLtT6LpaF5MEZBOIMMyOq8q7hNHXO9Z04W
-okWrpWXqFLtc6qE/KdODXRffRB8NqKgG6YHjtva9F1Mdn5d8T+KSrx1Wu4WAk8NvvhNLdGhHhE5N
-iQwNr9nFUpfYKOubbNYwN1bWiS13lC/Tmg0n8RB+osqwIok+U0BmbelIw6HsandUUH2j80fAl/VX
-BSVCfyE1E4L2bHh93ZoEjcu4O/PossKn5oqKQ5REDi37valJL2cnP9h5eKLWOF88u5vYPEYmnp+8
-KTCt69+RQTj2OS/oMAdt4uDu1DWZsz6KDpSxNXwwN1NBJnmwYsr+knVB8YweBsE+THtL2uvJhHXW
-krvauBGRUtwg219qvxd4fDko1W25Jz4VM8/8ynnUX5mPLAvwH1MNrutsGVAhY/SKlwlCZHMLtA1w
-ZPIKkUQ7z655lE31wXbEelAnVexp5F+DckwKLboCgbPyKMPCDqxXSmVtrpEvg61ku8YZ2DW+wiyx
-vEawtiAv4sB8BV7qr/DLuCNAI5binZM7xOSmIr3jYUHKHF6pmYTFotSPV5imgrw49SEVKve1qBge
-CH284jfjRF/8ToBc6WPE/VmoJLf5K6cTewwTIm8B83ZrE4rwk+nJHEGyANGiwD6jtEMJFC82lkyY
-/5uIg9jkVfmKCwUAqj8jqZGwBbxSReVXwijJmcl+HM1mn5IDFUjLCiTNE4Lbf5Yu/1tMfFNMRHD0
-sYjt9JGEbvGv//tOvvbnn/qrnqgA5dBsWdYMnf97LRr+WU9EwQ91xdZlTVaAZpirRu3f9URE+sjp
-HWqNCtwrTX1bT5T/UA0kC0SS8QNNw1Z/R8F/1PLSqEnqK8Rq/XuAYh2Xv9Wk45cjJnWbRGoWj2CR
-+OsaM4nGuwr1izodgEKktoCaa2UZ2Udvqq8XP/sIbyUfx82TdXxjrbpbBEIiC31tQL8p82sq7Lmx
-k4EKme0FNc/0RuEw7A96QygQIifjOtVyMXKiGRFwq2EYWq7UtvUtxM6i+r3+388fQ9UEzbSjcG+P
-6vFqxnkFmRupajVblGzou6fRnCWfBgFyoTlMT1v7DgSJOPn4Lqx9uDc9lp/jwt0xaGyuqOGjhqCc
-O+A6K7KS8X1npddRWlwCZ1Di9pPbfdSUex0IuwZvlaapBhXk982OvCgSmFJF6UZtH97CptY4RSgO
-UQGx3lvBx1f1q8FW9eVas0OLAWntXWelwzAipI5MF1LG5JNKKfuzsbAkfzDL8ZMu1VFzbL0u+n0M
-YwB7A3+z3uA3b5ES6gYSPK7LSqzwJemU+dburCFIiyzbJQnwk9++NJNCvm7xIaq2Ih81ijNdYp2Y
-mcFN4tp9SVBIpUrSE3Jj67//yOyVA8VUgZAGov77S4tNMF9tlyBkmXUMNvrUw3Ql+ULbs2Npf1Oz
-s95IhKxcGOA8mW7F0YXhhTNJ2wT7SUBG4oXlKsGX6mkkWsJu1ZcOA50c1EhvftrC/lEbcdTUeB0X
-zxJDApcygem9v0oM10qmait6cyxaUnghB5ypswxesojF7Vjq5Rd7ENL5bz9GZMPo8Sz2/vzD0ecw
-WAOaNyr+Lq8ploqCrxzUN+o7i73Tx0P94g2l/aIbaEqY8OE0vb9AdtS9haeICmRLDCwAZTWYzcHe
-9Q3Bs2MRST+TP//xhv7i42PhQNvFXIbZ63i8erQi3JgktZStbu5VieN+Hhn4qWz6FR9f2i9mL5sD
-FFEPFmYwbLjvL003MVJEc8hmGUbCmd7QCiHBTWz/F6NAlTKgMpumc9wPlmnoIPxlNqkT8hHJg7YP
-Anz66cej/PK20cJfAVYswa+JEW8mkpYWUgMwmFEyiNoemq9s3ulkR3LkJ+C9/mSK/NVbgXxcRy6P
-y0dnKX83b8nyYjYUzNYXsLseuuUyL2uY3XjmADEhXf344n41GgQw24Edpqv6alJ8O0uS5ZuYWsXH
-3cx1dFLEjbZtOfHv5WmqDvCb+0+u7hcvBjMyXzMtVcY0jkQ7qaWS8CXhYx2HqgJLK2R18KNSCT9T
-3/3iqTGEhg4fyb+O3PL9hU2Vrogu5jueBiTIPv2B3rfS0qb6E4fN9W/fRW6irqjm6i7AZPl+sHBS
-pqKLyGU2OXUAfCCS+blodMI8Qwl5q5sNuvj92ZEVm3cewSo7RX2dPd+8lUtp57i7IFQkQxx6qcQ5
-bA2iwveDaSekEjRNyuh/fJm/uqcK28J1k0lfe/WXvh1TdAmUTAkjE2nUJyqFxk2WE2ia6upnSo9f
-bEFZvv8z0lFD26yAPVNtpoVEP4hKPJXtO+Zr7Dq0spTG7UDJXYGSLJRNMg7GZy/PL5Yex2Lyste9
-CmvM0c2FA2lnolWIkpqWLlhmQ7pYsNP7tdHWm9VMgEkzDu8/vru/HNRcpxk+D5wjR4M2uTMqsQ1t
-oh25qbGTpbf5bN4Ks2igrNTadiTJ4pMx1/t4tMtcFwJm0PXA8Xeli73gP9NgaeZFTV+KCDynmrJ7
-LLHJM6EA+Tcjl0lwleRmD4Ep/2Ty+ftT5i1aab5UVDm6HE8Gsk7YlpaRHdtbk3IJbmV2M9FE8Kjq
-/nSxpXDTgpg/lar2k5Xw77PQ+vry5RishVipj7YWcLkg1U7wn+FFaefroX6TaIn6iZz873OrRiwR
-/iRoxRr/uP6KN5/oYBV9HKvQd9lgi28RHB7hY+EoC/DSU/mt643oE0XY328owzgqs4HJmmgcT3qC
-Po+Qqbe6eUetAYNRYVw4JHDhQ0n1eAvy2gApTDCMS0JLUn8yPfxq9NddvbKK55FOHV2vRGUJSSZk
-mKrCVmJJFYQCiGxi9KDoxoobF+Ey+tUkU+Yda0n5/vEH9PfpSWNNkddVk4WMw+P78U0i/tg2M2mo
-Ex5H/veYggkPVLgTn2w8fjES9i6SrIx1QA7y70fiLKE6S8aqWdBALMixt7FUADWCTwl1n4SAjy/s
-718pfn+OFewTUedjT3g/XJtIaTJ1NNRNskBeWFAAB+HPVtJQ2XRdUQZRPtcP5CFUawVav/t49PW2
-vZ8jGN00wHiym4MFe7S4db1JRHHL6AKPzkGpTNklQ1r97U9yHYX9KRth2UGj//4a+ULsmFTz/8/e
-mS1JjWRb+1X6BVSm2aXbUAw5kRMJJNzIgALNs9xd0tOfT1l9/p8MojOMvj7WZn1RVaCQ5PJh77W+
-xY5RGyFYS/cWSrZx+V/cSmCvX73wSfg6upXBdX0kDFzE1wsAJVnHMGdMU6VnJrYTX37AyEBASI4Z
-m+2jXRW0Vq/StSRVyES3EHZ+fggtzHl9KIjsoqL9x1tUJ1gNMgEvCPqIOBr5A2XABsJXjYCEjnSp
-gvLWSxS292Ry799+hKfGYuB7JplfLhv74+1plWcm5y+UF0Lo4dLMO5RMlltt7VmXl3CpzKvOGb0H
-r8+BF4j0nOr7xBzDto5HiqMDZHNwNMd4ZaHoIrAZjycYrJsONso9QEPoz+Yk+ifbNjzgPW7WPbkZ
-yJUzN7/+7UefAnq9tdLmOKTUHc9wOAuRW1GO2VhU/j/zMjLih20+xkgi2hlQRRXFI6kX3n8x4XDh
-EMIkPlWKg0cDd1zzZxLFoWC2aNwa/MJLFUBJsoQs3r/9gpEvHt0lxUmQwYJ9z1qD85zjTxGmOt+f
-JFJzWPCZdjSGSYS3QooZ2Wx39iEVTo2Az8YGvs+CMRn3QVGS+zk4IcI+by6sz2IMmjpCRtAs+8zu
-gh/13M51RKTeRPsf7dZlmaynGTJJCCFSJgnIvgUmC9aFJ/rNLLMyjoSpke0sE2FGdixp5Bg9nZBd
-xZYm3wwq9X4CJM0ppFttJXDry+4dqBEhtpjFSKUBH1r8jSgJkC9dzwkYZaehQiDJ4q+leTB97fys
-JJSmHogMDgdz7a9NxIVUwwAL3pK2A5JAuQby2yTQN2k1ZeLaEmbSbXqb3NpVTbUcep886Kgk2s2F
-dWLayQ59SftI8h6UcTX3yfuZXjZCSG7z2zi6Tsj0U1YZKFxyv7dz6HdXBu0ZCYTBKr+4SQ7/o2Bb
-QVQtcNIrs5xRf7jhWN8sfo0EKS/6aQeFFu+UwRLg4WAEpZY6RQYCsh+9kGohvPpUIvfZTp0hEZEl
-TVduB1eOV+bokbEqOCLA7iAg6WHkEDZC1JAdmd1BWdvEGU60MYRdNN9M0H0Qla2xavcssPEYYQuF
-sIQ11jU3dlVPD6VQwts5MiSzy0L00G511rRNpOl0Pso5FBzwQjk+pGVsmJGNPOM6a9n6s7d3mEe6
-ypK3XenY7Zb8cQLPNO2ip4o+OuCAvIWZgdzluW/E+MlFtoasUa4ha0G8KiSdNLa+5yrV3lYp+tC7
-wJvwaCLaGPUO1m4/7XO/QaRV0OS8V76FGijrU6xYxIXDiacHxOYIyy85P6nASkqoSD3NcNVm0mcW
-b23515SfIEd0vZdEub0Yn9OGkCLEDrWF+JPwEmL5xsSH5FmhUSSvt13kjj0rTJWGDLNPAfjEfKtI
-QDK2ATGQEllli2TWLbvgoercdCDg1Oi+xC1F902aDMttAbeQRwUhSm5sLTwYZ2EcPlXhgN/WUZ6L
-LGqho4vS1+iugxmd6DZdiIpCdqq7DulaRuLp0M/DE9xohQPdn+R3ZG0daF1SXL8slUifGA08BgQH
-qCRyc3oGu4NsKAmG0F4Zmq59WRDpjPAhVba1Ra7UD181/Bv9E7Og00ae72m6fX1jVrtYOLrdxiSv
-lwdVD5b5XLnx/HVo+zohmL5NW7i3iVE8tmDWikPtLcPKWR447sAFLrARWHHTH7RAOPnRQvhqbEkQ
-isurriI98kJ5beZcK7I5iY1Z5t4FUokr+DkxdXaf1gKVLnICdKmw6ojdkr0ZfNL4/K2dqyoDEYpv
-lsiVqbaZG7IDxJ0jZs+/G/PaeuraFBUJjOomvYg96IXbXk52/y5AGFU+J3jUi52dk6JxP9ZEt2+l
-jru/x2msnK2ZLyWnFyOQzo+OUQTLpvTi+cuIPICULZnOaz43et1NjrSZ0EbXGr7O/HN9F89UdO7i
-tqT1SpaEM8LK8OKlJcbA86v8vfQRdKMj0m55mTMDkj/IPAUxqS6zd9O4TNjvK3ac77Tnl+Mhm1xX
-R7nszE/GrFS8Cakb0z5ngHcwOJd4PNCQpb9e1iMCMaPojLvRI59jh3FYZXR6gcXcggBE8CpzIsCi
-xQQCve2XGTwN3moRwyRqrPuubTs0SIPShxyYwxg5wkhvVNU46d5BF2lcl2nVZZ9BxeTpbQhSbOEP
-kl20s3otHNjGBZ1TPYaWvpMxLL6vUGYdZxeYmY/HtXLrJhqmXBo3Yz77P2NoZ4iKs6GVe7OARbun
-YzWJhxpg3XDtj0WJ6N3n3e9laOufLqLg/qKu4DNvydYcB15ILPLLxLTy7+ai2gwFsomsy2JiC6Iy
-rGlPk8+nTeQrRitQ08UrqL5tZ4N07il8tJ0EBoCtFge0bk+vBvizOaVbr1VmRqjw2JHPQqgoVMkq
-rGjT0/sATr2U1WcBOoG5Ie8ku5Ox6cvDNNtq3I707RF+U+WD4sgtRfHgmd/EuPqUMiLKL/t4IXnU
-iy0DvXqY/5gHMX/yE52882M7vQtNWe3tMizurJJMjku/kp2O6sHhHYlytpf90GR4+StA0+OtqNCU
-XNbunNuo+OrJo4Axz+Z+snWrIlCSkvAPr8bq29o+UgIL6mq5XWZm56gnHry57OximYF5lSHBYF7l
-zbvSAa5wW5mqQqtBQi41CziqYue743KlB1UUF2IatYEoDYfjZoiNpKRrnaG2HcuKd9MbhRMTO2jg
-+u/LKSuJ92ic4CADvy15/0HKDykIbr5URKyUCNrXr6FhMdIR3yuqe5r+bXdJacN9r9NsJMMt8zWj
-0V0WGvOh2dmbweNiEaFawkZMmGGEAidSXg9zHXtbNPQSpgYQadxSdA9vUb6xz2jNDnVa4XccEixA
-8j/i3LDe+aItBYdqfh0aGgRXFt9Ff5OOU3k3DElir1nybUGQdccypiazbHesw85MNmtMvAmi1/ZT
-k5v2QxXMbDNSzAWP2kGSBJbfw0TvOBnE9SxJHBlJVzo/6X0IfF1IgjNABG0CYjtwyhQs8lATIe5P
-ZpQDgDABZ3XTg6uGstgr4K7FhqS4TESG4tjPx66mG9wBpkUlSyc/U1ekX4kxZslx+bCgL1QlbY0y
-Cfp6x9Tl5XuXqR1RE+1NeWANzh8W6OmwwkffvxNe6+fbVq20g8prwy8FnydNEmTIH4lf7zFZJGoA
-9T12+h5YspFsUiQkNwnjCuBOmyEZq4LYu9eoJm+ARRfPWmrxDY2Tl2ydTKafGb0IZTMvqK8mlGSs
-lZ7sCtDFdrmOIGOuogA1uEPCQdfcaqsPb/0pQYHPMb380reV5nmN/fAdRaLZ7WRgi91iK7+OJkH0
-AFGI/Bhi4Er1k/zP/kPdyhp1e++SVeDEA5ChcqxWYIhywdAayXeA+EgddctHg0IyHqwo70wFBMhP
-Pxke+BG0mjHkzT4Ztb+t2ETMN47lZJeyyga1bedUaxCdGWiuUEEY3rWl3z0NS+CoixaFK0j8gfl+
-I1sO2bfTIlJ2XogZSWmT1CjRNRakvHtVUndsw9KOzVjdorYzlhxYlI1AF1YlEIy8XlEQKi6iYeCh
-b1CcMZYcpaqDDbrU2cVtSjyFpoXfRnR2Oa0YAxK/Hbp8tp6LuyDiorZbPi79grbcMJW97BSoHOeC
-dlH/POBLCbd1jNBlaxg2qvUAwfECdKI3Q1LW2DCwZqj8q9Gna2oF3LFxtwTEUVBXlPy1TYiGRzS5
-Ea4ZAfMSudbi/kw0usudrgAe39oOVhf24JlpgSFIiViuLZco3kSl6CaNeUrNrbHU/O2qdhD6MEFM
-2UGw9H1ANB+SGNyz6cCFkzbOhTX3uYtXYmSX0xCBx/41VlMIegZYNNCBPv6YuoHRQetyqw/NrEq2
-nsJZjOuqTn1vi6Wqe4wHkS54WsBNRG69yqpYK5JlPw523W4nEEA3ZE+5LXCwtEVl5/fCjAKXqJ5N
-Zy3jyiUJuuAqCLPgB/s7vjgV2+zHR5P4PoMizrjpYaPdk7TYlhsAe9l7PBJ+t6HxO/wsKhW6GyMT
-KILycSDauh/mIEUonC4/8zkPr+oJauIuaCbnsRjU8m6Rpf44t147M3sZ1UWwVEkf1SP+rcivwhwN
-UEzSH3Qi375UVhJeT8SRjhsfDdNP2DFE1y5gwafII3EFPwhhP3nEqskBAV0R8cRGSO2Rfb8HWShh
-C/q3B6pZMeUVpHB2Ip7TaHSnvI9YzhBa1aJEZmpgX4OvEAz8kwZ3I7T6bJXKK43hqag75LuUURli
-Mb98RyJU6oPImbBLtB4g5WYNG4gKbc460towGQpL7nwO+rbBrsWkx99tICTf2NaSrIpZiTa4nyS6
-S52jphWJx4CGiow2ODdW/Vct5fTNHHounIRgN/Z9njEsC4MVh42kq5/0AqH33gkSr7powtREaj3O
-KGB9iQy1rjHSbQWo4JEZL/UFp4NB/+hXYZ8uQ34glUBOKooqK2Ys+0WUTEj7XY4g+4M51ZxcGsJg
-ODKIMMfICqKF3Kty4n6cBAAw5MKupJDQ6R+5uT7HxpvScTckJoI3DQLbjXK356DDvip9QEO8WOz2
-CUXZ1JnSP8zE5W8ygtKaL5tKm8llnYdcwVlGnGSsduFNX+lK3OCg4XbY54Y3YKn440OscZVlpeeL
-HVvr9Tsctaf2TrUE+zluWrj9rWX99Ptq+PZ23eGosuOimiCfD68mhC5Mt+FRTd4jom1sHVHxtYHn
-W8Hrubwwk7jl0ceQgZEqcSBzoQBPZdtv3r74S234l8rOP1dfS7kuIUW4No/qSr4bx12P9HlDbrbB
-bDgnWw5DNvvi4GPXAizpJLabfmySXckT2dZ5MB9qKFM7WydQWWav/2Q4jKEzv2utFL71u9an9ksP
-oTY736OaXlPMIL1411sxlsgqrKcdcKyfGRJ9l/FtZOamF1TYrRFnXIFgd9NXivMYsPLnt3/RUen7
-nwe1cnJwmq4KtaMfRFSHxcYpp/RdcUiGvaextLEa0AYcGr85U/k+KkW9XI2SJgOCOirgmPXx/HL7
-rXZrXVgQwOfcC765GXgxAj8rjchy8qZvcdHYZ0q3p4ahQOtCcc9fhWhHpdQ6joemGAI2mF1t3/vg
-mDcytoJdMmIBmJUZHto6lQDu/TPCk98vTEHRwb7LCOT6x6q32Te8UrSwf2RNKhXl1PndjKboekKe
-vu+nboT33XWPBCom+7df6VFJl4f8+spHrzQgXto1a5qAvZqbdNuAjw9vmQimO0D5ACZ1vLDYdpaX
-tR8qt7fVpUoHtMZv/4qjNsM/vwKFIyRiMjwxU79+1WTcNGy4+QJL1tA1NsK+W+X3l29f5fcBxb0C
-QWYw+YjCzKPXy6UzJ+z4nhxtjVeexSoeVNZV0Gn9Xji2ODOafn+0NDcZRqh9BT1z56huywTshZ3D
-TS382y+GXDPFik4eRKFJJTNA2mCgZM3yRgnYU/5pYuD6ZgVzGtAj22diPbrbwKVqVBl8Pv3I8XWc
-CHGXDhMVrsmLP3+u7KWJCV6VYig8Xr+9Niz6fspo5cZouC/LPLFAmKwu20AYnJ/7Qojb/+KK4BVN
-SFKru/7o0VqQFDtOuPWmTQ39PZ4NA+x/jrbcw3N538dzcEZxcWqAoiShqbOKd/3j5pFGIINfIGEq
-7iXLeri0A65CMaj6zPd48kKo7aBRui5v7ai7SKIrmYuKZ7ngjmHzNrJhnqbuzFVOfQl0ay1EhIjC
-rGNIjxbBuBQpVxkladAACMPlAkM8WeVj19wPuB3PNE9+XzkAiyHEQU7I9oEO8esh4jcUUOdgHSKW
-Ch90vXQOyZ6JMHayrOBVvT08jlo1L9MJ4X6rBcAVLnPq66s1oSwlQiqGPhTYrxmGKEpkBceihXSi
-oWZ/xB5NfXz7oifmcFYrC7AZE7hDg/j1RZc4WByvaepNkKXpnlccA2qe4w1BtHvCcgKsM457cJ0Z
-PuHbVz7xNvHD0KtBysHcdsxcpzLapEHHlz7EMvhsWwVoy05a6qJfqJwlBLnv3r7giUG6zmgo1Wg7
-8krXH/TLyjzocPTclOpn5RgoRDRAdWk45v7tq5x4i8IGIOXTdw6QXx9tCsM5TlbbxirUKKyJ7TL5
-RwcHtiee8HGOvxcWZu9Nask8PHN/J6/MOuRarEd0co82hHGQz5R4kYg0hTKfB4Cc+ASLOLubEQZ9
-Y2XB74hfW8VnJtITXwmXM9nx0Orjjo8W454OhRgl162Kdroaahxj/mQYDySeyzMT2olbRGTlIOdi
-MoP5d7Q6dKVpL5oArU1Di4zIMMM5TB7Q6E2WO/ZD22T9c2GF57Q3J27wpTOOmhIduL2mgf86cIir
-l2Go+EYy3t3W7DGXk8oVH7BYLmc+ihNjNCSDO0RjhAjQOVYu5P1Y9XLhBmOy91ZY/bTVHVF6b4/R
-36+y6k1MuqYYzZGFHI0UU1GYyzpUcXBR5V2hi3on0lyd2R6euAqbI4v/MXkiIDiaPSX0B8rJYb1x
-RZ9tWqv2YLWm58BVJ67C2YfOOis4rhXv6OVQGVQThxyQqzOdlLs+B7aybXoDgsMfPzTmZYtePjpX
-RsLRh+0olzgpDwXNok0MTavZrEmnL29f5PdJkRR2VptgjbdlRTi6G9w0gGhpd1Ec9Ior5s5s3tFJ
-4O4A4ti7Asrn/PntS554gAi9KMwhv2LSeEGg/TItZrWPBqlkL+04nJX7NGj37TxN27evcuLGSIFm
-50PUm+u7x1fRaPITjv/oS0LC6poyFTdI6QZyyyhxtlNyTpp4+nocS/wXI8DxuqZsUwoCOWqyEA16
-oUbZJwLtE07AXW7mzYOceuf727d48kGuom4WGRQPv5UDKgJBnVWZOKd1tsWAk2zLZlzOzPInrhLg
-SyT8BI16gN7z9WRE6ZWy9cT6Ikszvg8moqiGvJjPeHnWcfb6EI8gw2MlwUcUcvw4miFiPx0TXDZQ
-7xD679NyGiInV/o9/ibINjoQ+DqTqdti1KwObz/GE2+O3RZScojnnCmPZVUqM7OuQ65FAKSbPK9y
-j+dFhu6wLxvKeUSAQvzfv33J35cVxDm8MI4DGEbwuL1+pqm28WT7U7WJnXo5eNK2vpQGAJIbw6Zk
-cB83yrGoyK5W2rcvfOpl+u4aMc1kjyXg6HPHBcT+tRkRXaQjJmnPJQ2jbfUfb2O5PUx4eLMAf7HQ
-v769pp2EDANJOb8M6gP9SjQRSAEFn0JZVt6ZAXpq6KxLM9IunigC89dXkyxqBMogBYG3nh1y3127
-OpnhAm8QOcEEyfzOo1F2oIEyP/354xQ8RrRWAcPHWxfyX6YykamO3rdHvDyIi3vSenAez5Z/ZvU8
-NUAFmHnukI+QdfT1VWjGtRj+eFWVv+J9asP44kzIVOfC7S4mwz8HwPx9+8G8zEFeUE9ajU1Hg2RZ
-BmBeEmWOV6Xeoz27qJoCP18rSmlmDmeG5DG4lkWHy1FpWLcg/P+xXC6b5iLOUwca7xIrvekR70iS
-DcOpvPCI+qx3siClz1ROT65p3bSEGSHY3YAUKNSZ33LiSa/yMY5EPGiW96P3udiJ47cLIsEZLTuR
-sodWzfvcJq1DJFW1fXvwHIvI1hsPETdiTnhZMo5FZJUuCGaxKYLnVpwAcKuqOKeTBHWHhAP8QQAq
-gSgAuW0J6b02qW19sjrOcptC2TBfqBh49XerXayJxFXDSxGLMGNd4+dH5BJzvDrzoR27Tl9+sIsz
-nL2+idTu2Ew0VWGa+Cb4hpAvutplajTf6al0DkjF64s4SFY5VjccUrgCmC2MDtBBMgvryeHnyjNf
-xelfgw0t9B2fdeN43OT+WCqTBijZqwvqLxQp2YtbxvUiEgDHO0avcWlqRaeo7OjJliTaGopcZeLV
-zT+T5v7zZH75Lc7rTzRFqp2jAV4ZbWCfsE+WsMjtcwfKU8OT8YIJlWoVk86RM6iZgQcKl6skY5dG
-bh8OP4DGFO/UYCZXauD09/YIPbFasE3z+SRZlFHLr//+l+nN9RezwayDkNWDjNEbxCyLudJnnt2J
-6YarrI5XTlq8yqOPbkJjWU6SIwgyku5znJPz1HV28hWH87ldxskb4ji30usB5R8jhFUOzYPmORWP
-VhTbuKdh1EPLObOXOXkV8IrMZlRVfhfgJiJubfxpqJuSLNjX0+TKLYc4cEtvv59TTy5gieUd4XOi
-rPH6/fScGwI8nlwI9OEeb0G+FY0SDy1stvf/zaU8irTrnh03yutLVcM0oMnhJbXT2N6RIIm+pAh6
-teq3df7hv7gYxi2Ke+zeyel7fTG3wsXjw4aBztKmeylHHEUoYLYgHKr925c69a7Y/bG24lpk83A0
-+FYCkj8gEuMw4lUPhZkRPBuoc+j5Ux8uxACxFp5YYI53t3WpfFqWjLsaBa25kYSEIhnK9MeU2te+
-lXGxffu2To0MyohY0FyQq/h4Xj9BZ4SQSOIaG5OGsM18qcwPfY6egSNDeuZl/X5vFGIwC4jVghzy
-Hb++lHatsASjWW2gAfeHNO4emqC/Qn7nX5h9ps7c2ImrBYj3MQuF7FDwehxdTTok0uU9exNt+Fer
-YPQJJROcP0su93GXxme2sr+PD5/ZL/TWzQlnffvoehmuMtcyGiQloks+t9aCPMex9ePbr+vkVbCP
-8BlzjvsNbW4Yyp+g2WBfbZPiK4CS/hZASnFmxTzx7NYNlreOQsHqffSmaAQsSRsg5qrVrO4tKxYE
-LNV5d0VAtP/J7uLy5x/fFkMQuwqu2ZcG2uuX5fhljxqV0wYmfM4Blf13Rr76Hx/fOGpAqlondBqu
-x2US25AxFCnFyZFgb2yXMSC/GpVO1OPlHjcm7+zMc/z9bTGvo7EPOa6ybz1eFjuYUd6s6PfNZSdv
-xJLH70ypHf3Hs7sgiFRgERfM7hy9Xz+9oDIsFYTkC6XOSDpVUf1YWuC70H7+zbj+j673327IR24l
-+Jw4fdvr6fv1lRLkvoY0u3ZjdXP2uWqMdleM6bnK/+8bfS7DsZf9BCmqeH+OLiOAWnSBAD8C/NIh
-RrsOcudaz7pw3inZliv3KzSKndl57XTIUcWF93Hsokysre5sN+7UPa9TCAd/ZhM6f6/vmbgnNwPk
-1W7mvlQNoD4nvXEzr/rTvQBLC65RBiYTpI+T8vVlzJlWprtWCxuhg23o6B+1YyYXL9/Z/2GFfsUK
-scHnHf1nRvlj1vzrAFno7x//+rv5123Tjz9+BZbDAln//L8BQ47zF10ZpBnEDPApc3r4f8ByJ/iL
-ed4kAe/f/4Zd9v8ChvhTHAwDcA281fWgyN/4vwF5/l8hhUaGNh1zqs9wBf8EMLR+C6/qYdTKOX8j
-v8f1Sy376OPvs3roCfH8glAzArD3QEhqZYp9g7ga2gP7V/DRncrPTDm/1aXWq/KcaAhgrmYD8Xq0
-GtLrIAb6XyYJYzW4qdTObuKI+N7tsjz/8nLu/7mVXxFGtKiObhFbKN1Oyn48aJ7asT2fU6pXAFzg
-iNig9Io6cw3RFbWVQ+sMgRuD+fIOqMmrbmfKlADfgUZWFhFDC1O5K5I0vAt7Wj6RPw7Zw1jYxgf8
-NFCJlwRXyCYfpvhTy/7HiozaS9EAKackNmRCEB/5BNbn26mHlXrgLA3qWRBvN+48g507+7M5/jSK
-GN1O0WfhZV6O0tlYia4gFzdKXga16T87DaQe2HV9l14Eid38bJoElpzuex18XCUpXWS3+PRoR2TD
-g+8kPTZYtJr5JnbxVLiNabW0yLvJ2HhWAsvbNUFzbFURlmiHA/L1EJRIUsb70nc/1/EwI17qPHM3
-oZTdBm4V+FsDguytYdfA0u2AVR2HbYLRxSd5FMZwZUGdc41A6A2y6y65xvYgrA04XBc7nuHO3hWT
-r3dtApwjn3AIcKyEKrFvMwov2abJnVtTtgDXrWp5dNvkeUiMtGONha6Iurl2SEf1QQOT/Gf4CLmZ
-14MNGucYaF6ME4Rs9cEpt/G0zHTPR8ubduw6kn6LxHvd95pTPxyAV2VmZEnleFFjWXIEtlIZB1MZ
-jXFH+1T8PWW6SA61OY9yL2tKKmgRgzK5dlx8JpdOJxo4nySrPTcyyH8A8JuQgnt560PXJ6GU11+F
-DQe9WqQbZEvqXRgOfbMtpRFejq2X9VvwnqjpbWrpxd2IjB51oTeYEgRjXZF7lda5yaNf8uYAGLLt
-tqLz6jUJOSdReVncjAPKNCEUeOgUmnlCEVX6XdchNaR8NNt4DxClAAiPiJlHOIfFBQJMiCUhQ+xz
-p1z+Rjvz2aiH8whENkFGuZkQatw2yZw/1WWrw0PmaBvyQLDwzFVg6iglHPlnNa/C7sCea/9qkAlR
-fewgJ7mTInYuXWiiFup3c0gPxGaOTynYUW8vOiVxYtRoJnhqqMWS2cZK4hO9C0Bswp00JstoILdO
-h/vO0u1X9tuq39qlj4h7SYXxFVfa+MjpNvnYEFD2PfQqeTO6CXANg4GWbZeRFlIEK0F8k54kZ9OG
-MOwjmecGt1ap05HBYnvNro5VxX8ehosTWTh5cHGVFf0a0NU28c5DBeLMGnr9sIzF+FgmGNM2BQ6q
-HrlH8bFT3qowH43vQjTGuEWiNH1X2SS+D21l3xMDjMq7hfQP6tHMZzhX3foe+pLCQt556fpbFOWN
-BBCP3PSwwr1dgkiHnJZUuM4lbhW2BrnhjjABQjU9N2Sj3su8yMc95Gj7vssUIoIgk8CmYweOz9b2
-5fhD9oO6XzSNyj266PCHCBvZQcN1i/dw14NpowiY+ABlvKdB3pjG5ymnlb13QKf5Oxx2PJ4U00W5
-KUFsfIAuinu2sXLTjyaiib3Ioc8kVsZl6EXKc+afmZfFz8uYje+88aVesyzU4nTiOfdm2ehPdT5V
-n5bSxOaV4Haaok6Q2Be59hzg0JKVlR5GivbfCHFMUeunrr7uYpeKZ9YQqLcbnDzrL9GeKYrOeqAp
-khqEFFxPgdstUSZE8c956P82NL9uaNgIsyT+5w3Nu6/k/B76ZhiOSIkvf+7fGxnP/Itck7WHSwtw
-1UJRefw3KdG3/qJRTaWLwpC5bnF+2ciIv1Z937pZgWBII8j+//sYK/jLpBcWhhREfEpyrvUn+xj/
-5Zjy606GFjnSIrAMXAmUCTkur4qIzpT0pIw2QTSqYYQWnfVVgnnZtqatn9vDQ2COnffkvTBPjRf+
-qS+pSF4GJKoQ67t08iGFWWFF/Qs41SEEZUO/kpVt8F3sdyWnohkATUyWvN1XnM8TexqZQeCyVmsl
-O7IK9x1x1WPxIAHjtnS8JAS41ADMv5EU4JcvVcYW4k5ibPmbYPK62RZxqFgAVdjdui9EWzZpPVn2
-7fRULWpUlAMaeS0R8CMwJzujuc0niMcHPMkB6FcZ2z+LRSiSWh2zfrT6wqoOVhbXmo2GAfT+JVhV
-1iVK7iLJbkJNHXtXDElZB5vSos1yaWaDbWzwDUECNnBw15GtTT+/0YJ4OqwfY2UdqheUMKKpOdiX
-rurSrU1GurotW2cKt3OHDWkXV/7SRcgZq3krcQSNqIJAVUcDERkVktUX6HGAu6k70GCzUd2jXlzj
-fnvPKW7cESb7tQFs2P3eZ/kqvs840URTGFcimpx6tu9sRVpaVK8Rv1sixYfhPsFKtxzIiHHML6i+
-S++jxLlIvGyYpiGV0Hpw7wGKj/Y9pAKsjmZKFl7UDJo0Bhocw3glYpV/KMfe+irtsv4UF4K+9urL
-KDdLgwimCxL3UFQ5+GPK5c4uFRrkXhJqd0tKSvXecTSTHHnFYgm5Zfgmhbuhv5y2kexn7yug+ay7
-T2Wl70VFKbOqtHqaYgDSt2naiXnjpjXaO8PpGywrY1hld904ANsfihqktMPJFVaLDAod9bDozN2c
-DZl/q2fSqLGz+pqdSgCuiHpsucj7ZTFI99kUsmRrYmNVtbcssdj3/cp3hr0vs2oHFrn82nuUwDNS
-kUGpkSTDHs5pAmM3S3zLbWgNyBzLOGnAQuatCbLWNHdQiJsn5OxIobICUvOex4I1io9lcr+GRRfu
-Y2xOKaEPbMR/GNUyg80FSWBeyEDp1twqEjRQGLlOpnO1a2DojnAJeke0XoxDd4m7aiYgBbJwccXf
-HxCTTNrS8mnWTb+hNaUa2DW9c3DH+Vl4wxQtHHofcbbll4Qxs2AzTC+apEFYUiskYbbO+AgbtucY
-+UCtQ4yH6A+5wBRAU+2uwW/hTXF+a49T+tHA0/Q5xXp04YTTtB/gcL5bzcQXREI23wlefqxV62Gi
-80kXaIL5PvRqkOPERMw7exHVl7xOQWA5ucMhHGFzet9A3vzMvakLO264IpOEs3fidpsZZnVwynKN
-AoqLK1sM+l6xm3wQbkvYcIL3Q+MlCWQxvzcqr39UGDYog2Nn2cIeYVqDGDTfUlEObgTNMjbqS/xl
-dkEeb3KiB0Y+ktn4tITs0Ta5G8hyJ7C83INiWG6MsiieQFAPn4NshtaK0r1KN3ZLN2RoscGkqjFv
-JqvzYeRbE0kLzKA4lpxWEOExhV5/m0A0eKi8Bi9o63TzjzpwG6Jc86koEHb5eNpADjTdHnBpws4r
-MyxYUqWVgO9uEpwQCCJ9EpkB3bv3vl8SONsP/ZUwC/OyGwLaaMsSDGwGGm1nO2EU85NqHHyw9CvJ
-YegIC+j3NAOci3Yc8TJrSTkuzYUxR4YRJPHVVNKvINuHrEjqdByMGBkdOM2NdCmK7zxllflNVVpo
-ndYoiX1BFKcRJUybJekWqU7BTPc/ezAvOAcxJnX7PlT93sWFWzyCYzcULUgGJ9VoPN+xx9S16UO3
-Vvuk7Tvx0ITOj8XPmPPqYGumBWR42VW3Wq+sjItUtUzvkcC91ReXmdMMcDA01VSjfM6L8O9J5Ar3
-6tD6WNILu2CdCSer3OmsmCGmG6oY9k08yjBKcpitB2W27GMNmNaXi8G+ikSn2jhks9wr0VwuMExI
-YVg8K0K00N56c9gM20bn3bzv7dj9ApkLsIGHGBghDKYtGouquTTcQV8kEjI8Yoc+YzqahDZ2jTvZ
-POU6WOOptO7uYM5cU4XX6XXpzWWwF+YM/TxY0R0X7YAlb2dhbb6F0JIPl71ZlMG7Jenb3WJopngt
-Jzv45MxrhkIz4khc4hjr7aAkHjE3ICghKRALI7sgnsHlv6KtJkgBpJT8kOdFvTU1j/jCWZ3y2bNM
-myddp+uSVyzed7yG8/Vkq8Q69ISfxFjKPzcQkvFXLgYDgySVrvq8NCv7nunc9HY4hRnuix4xlHUk
-T7zDPJevCQmz4R9M5od8z2hya1zudvq4tC6V2Rzh+yZ3/ENdFvqqLDU+0EB8SVVOCMOiv9ZL86iS
-9NFy9XJlyuEZmGOE7uE2V87fpWlO/8PemSTXjW1Zdiph2Ycb6sIsIhsAXkVSFGtJ7MAoiUJdXJQX
-mE0OIEcRE8uF9/3HFx9pZCra0XFzmTsForo495y99wrmznP92bL2HYu57w7WhSBD3AqwmWxKezhX
-SgJ1SJXN633VSGmzNLq8AMhefGnVUFR0zRDWIZGmM2xmO7Yvm9ZNVhGHY/dYwhdl7DZxJ8AU5Jhx
-v9sTqSN7jRSR73Ux6qyVRX03a25SX9jRnNkH2VV8ctdJDDrNVm86EPRkGpFE0pJy0ZpGdaPHg1TO
-6LAOyQZvh50HY55194tIBf67tK3EnS5yeY8LSfIN74UndlJp551BdWATbeLYySX7pGretbM5+ojf
-+auzjjTgDmbUuFHLiSNWver8KAbZ3TcmjDJMDJr6jDfWvtFJFcqCVtRJkGbjVZTqRJktMmB3O5Iv
-MofeqItbrmpyxvKfbUZjCmPkbYKPYvqVVajaRkLzQnhBzrcmUfcOWRMk4JA7LX1MJPp13CeRDOGn
-5FhfkvsFFnG1URf2JTYm59V1mV05aaZbh2Fxi709ekNQKiRrVBJEcT09QK2haIiLpMEGEbVWdp/b
-NdwuBztbb8+q+1CPDaRxnl1M1XkLFQdXNV5HbN6DVWS0E6KFO3SWyMguEVrQy0jFZlRGvasp3sqY
-Um+qSecA6JRn2mFQWmJatBzymF1qtbtFszglj3btjp/KImvdx1rtky9aPA4uv6qaQQMWOaSLWNrT
-nUGoUO6rtZ6eK6TWAXTJ9Ol5qiL8n4oYEY/EnvLgKLy8Rj0t5DE6fBOFTz8m+qz0BpbGjhJiZ7QL
-6+3RQrpOp2HMGCsSplIWrJSuqrnTXUtHCfl/N5kEc0Q92do7bpn2veucZiY1ZSmhvlstVvymL6Rx
-wGI+3pR1mdbbJGkbNahoxCyBTcBEekkkI5/aZqT7hjdsVj91nZcaB+Gki/29VVX9s0Cf+Yyn2tz0
-kHD8rDZ7e7dorVjOmiRP7kejV3aNUJZnw+3mGwsFToBBHzzjrPJ5YAvbVwYRArgVNozhi3MLkMlV
-UxjeeQ8SLN9YTTRrUC86cYaFNFd3q3JY/0zE/7QCCw1F+8wZxKM/LnVKZo7ddkFZzkm8I0S2Hc6l
-SMDelqpuBHSTbsVk8crNDTQqFq7yfrR7firrI+vCcSZydlQD4scEzuDAjNxr+D4IFigLcEEZQI7T
-7xPpip1dVEp1VqZD8dkaFWM+RJ0n6a822VNP5eXsWstsrB2CmUnu9H7eLvAVhkl7bswE3/a4mH6X
-Tft8WLaZEI68VNvVDz8uovH2BNIMjwlZlMshIW0bf1HabM3aFs2WnKRW8aG9TOpe5yd9GpLDRe3Z
-8UUc6Sv7J7Hy9mCJvI4D2E8enBHXaUCWW9Yhq4fqrCvbNWRKmA91j183TNa4qh+am+r2ruVDy2qI
-di1oZn12eH3qQQ9zyu78EvXaUu+JbvESGCjCin2nxb4fajw0dpC73jIh5cf0PoZuItDwqWQ0GptJ
-y20N0W7hboA8TctelCrmaz0ipyGg/m+qr7NtWju9MgHIK0nxo8Gy7pMN9YuJGikPo7vt7MW8cS26
-OFh9IwPAoXBu6XJH+Y2+AF/yTWnvFeahRdAbUfqJv1Wck8Mo912VTls4J91PB3dFYJLtwyeHPvA/
-PFr/0+r4vdVhoWJ/r9Vx9dT+5/95Ma35x0/83eQw7b8YtDKWQPKkMzIw6GT8Ey/r/rVKk5iUGKpt
-r+K0/5rW6MxxEC+xnJo4Jtl30xr557DG+8slXpluHcolvB3IPv73v78Yl3Ynf/59lLGOCn/rcFBw
-HqWuBLDrNp4U52SuPuINjwlK5CHUlTGcezJj8DD1m9+uyBsDk5Pp/T+OYtDsQQZKLPSp/bqOuoZ8
-k7LzcX0Dpx0UNoeVLB6ZHIiQXEjlA/Pg67NC9MDVY/Fnx4+l72XfptAWpNKSycjAu02G3SSRZY+a
-//5ZvXUUABYUaIyGuU0nuiLofGnWqngFMzPRv6DELmnJyyV8/yivrx3TOo+R/Tq7MxHrvjyXFh8P
-AyQIYjI3EwfilCQ2JW8tC/aAN5MppIkpuXv/mOtdf/lUoJZatRYqwaSkN/D0/S6e8ypjLRjnFh13
-pZ+piiB/rcszpALMbf74UIyW2XTzaqzOlJOxnd7QJi+HnEMVY+OPXrVsG9I8gi4riw/m2W9cSRuS
-M2gFLuNqQn55VlZjVy7zlNYf0y47EDNn720r6y+wfXqfJyLo9u+f2hvPx4vjnVzFGXplbY8cr620
-pdmXWtQom2xkHPr+cd64W+QBo2m19BVUfarQipi3gdK0BJJ1kYwB8ItsDvt0WB7J6xEfHOyti3j0
-zsNQUPHcnDz0niC3u8sY8jB5yUNmVDr1EsMimofM7uiqB/+NkyOJlHYwRAyWyZc3baSgI7wMgqtW
-DKZP2hrbi16Ho4om7c/fZ5sBOKmnNl5LZx25//7Uj2aqgL3QOFQChsJsI2ubdn38wQN/MqdmLeQs
-fjvKqxXXadpO44QsMG1J4sQ7N5/FAzoa82Iyc/HQusPXP7+Gvx9yvae/aWE1xbJyRZIsMbdqEfYM
-wy67bCEIkvSYu/cPtV6jk5UDwQhdIlQpa5zxyevceU3SLkpCc41E/qu8hluquIRw/zeOwsPOy0yV
-hB7n5QlFVmTCQHQEnTiCNg1Z29t0rO3d+0d561EHxMqHef3aoql4eRTSfNM2BSa4AtQMO3CJbD8r
-7DL6VTZdcuexXvUfvFxvvclcOpZDwosxtZ28XBmFYJva6It6vFo7Rmrf8CZ+1wUpV++f2lu3ycFf
-hjjaXhV1J08ESjRyki2WjCSCUTeVnRuaQKA/eKFOZe486zh7V28msxo+JKfuDyZt7BWsig6b0Rq4
-P4wpsBb4u03TMBSfasMnKXQXEauLw4VAOWQhdI4W1fwosfn1+SJPhDlE/gRCbV7Bl7fSg2U7jiNf
-Ga3qC/uaJn7SHRJjKD/yn2jrov7yBeBIFHxsrdDbHFU2v79rsovdRAMpwhQ0yQl31cetEI1xV4/t
-p9hW5FnLeHmDeUJDtkuKJw4StuVO0Gu9dxigjnxQCr1ebpD6abyRK9VBxYLz8synmfpIGaXwG9Wd
-DOaqXknAUz/FRkhykL5iXkf7pmMc9JEC/80j6yuOhgKX634iA5rHxltiwaozJdoYDnGhB5OIFDxV
-zNC8bzX44/BPn2rO9bcjnryws25I4g5XAQJtgwCgcA7Qc6g++CK9fpY4CjeYC2fjgDtdFlCkVAYV
-pfCN2WW+BQU9GE1gae+fy+vFh6NARVLp6EO6OhWtVzX8jc4hhiWPPfuG4YDYGKs7Xh2K7Huftsv2
-/eO9dbd4ZNc9h8V78soQnzNOKCAZgzedTEIOhauc65EKttUtu0/6OHt9KGOqwA/O86Pjui+fT3vA
-GSlqumhFWbXnGYzEA0l2yyciQtvzgQQU+KWZ9sHy99bFXatNuEwU8KZxsvxJuOcCFy8XN9Wsr+gc
-kJ3o3ggnFIkOYdFkR3x5//K+XtkxiRAaga2Cyhpd3MvTHIh6RJYTA22NmN/aQrQhqRGjr1Tyz8tO
-SmkqGLwiJCtgUHt5qJyIzHyyTdShE1MaNV+Greytj4rpN94CLK+rupeBNjbQ03Ul1u1O2qwfKlHe
-WkDTM7dJimqBjb9/5d64Vy8OdLJ0VzOOPsQe2JKdZiJ3kDZ0njnXqsgtsoQ+SqRYL87L5XvdVxPO
-wNOBTUk7uU+8x2mRJAvgzlHtzhJXKXd1VapQmS130zg2k9ZJUXK/nBmt//mrgN/B1EkstVci2smN
-cwD8LnnP139Reu+2EJb+mbzxISCUXhyAVKG+a5LoIwvqG0/mCrngC0EZwHOjv3xc2JPYtFon6lHQ
-uEzfPEZwWpYATmCI9P6tfONd9457ZbCHuF5Pdctu082dGTcUVEk9ntuDGA4lNIGz1PT0fR85tGcL
-0f0xbAipyKoX0SlEGGqe2mTaRNAu6zmqMdhoBAowImuEeXdm1cZwKdcsvcr1OpK9kU28f8KvXpL1
-o0sdB7ODkcmrvAVC76pGCFaUmCQ/X1crY6trzvjHeAh0KgjTccvgqHq1trTMyNtp4ZldmA/QDB7A
-sbHFZercONUHhre3zojVhfITqCQHPHk/wMwgNG960vcJqcOCMSjLI4P14qNkrVdPJVdudQtyy+gM
-IL95+VSiNG3cCQEnTyWcvq6ZzXO1GMqDkEP3wZfvrUPhCYXKitKdD+3JofpVv1KXJYcSMS6jEfpn
-s8zEwKvz/s8fB2ohXgHNom44/caK0k1SqTeYCJga40mk1mU0LDZ/fJT1M8PrxcUD0LdWqL/t9rrY
-STxYOSxhFvmbqt0lYL/Lj2xhbzwIFNRrP49j4C06WTZ4izQ3LiJco/nsBXQ+le/j4JEG//7JvHFz
-sItyLoBqiSx55VJHQZ0ocb4G9A/RFiFlF+TGmDGh9D6Iy3nzhH470klNUNWziJY5Q9Zsjw9YPYxN
-pUfNB8/aq48ZDjpakxwGXRvJbSdXTUPYVdZ4snzNRhIhMiluS2OqD15smYtfT1Lu3r9+2vo3vvig
-rUdkNoQFH2Uc4rKXT8MiiqzA4Vv7ZuxxAYWWhJCxgHsyziQI2oqSfSXHGBGQ5aFTFvovZVbOOqtq
-tokx/S2OfNF+frfdvP42JsI93DTo6U5/m0S1Es2VPDW5kzw6g6JsCLkZP+jzvXUnkRXqq3+Vzunp
-RbbFtBADY8EGTFs9DeYJu3XYEcn7h+EGNGSpEzx8ngbOI9IiTh6ZyMyJNkITgjqrkgE5ALavTsqW
-2Kh91aMdef9WvnVa5A/x8ODVQJV4sk4xsyZ1Y6wb3+mt6DwfZ3FoWEHD/8ZRaHaQKMg3Cy7my+fF
-KZzWmGNWQ7j17UU9JOVGWkb657doJWCStMGWg0bOyZVDpqjkXoqpeJ6c5LKYPDPQUiv50zYRenqG
-J/Sh1lkKTcSX5+Iuo4JEi2c/T43yUzlLRvqg4T9Yb193OdbDEBtokfiGn+/YEvhtwUWkWFtq6TBQ
-HaL0QkGXvNVEcVZPQFBsdbx0J+umISaRZ92Jzul1n9le03zwbXlVW/FLEONhMCJYg7dONxiLUAev
-j8kyX+xRhxsmk666MqWljhfWME1k8U1ekR7aEcPjBw/mG4saOwEmqjpeNEqskw8OkcsWOmwPehEg
-xzxIVELjpya9MExg9gh++OcfP6N8eFg9VistF/30TdBRqC0qq4iZIGjEp9FunXL56E14/ekBNUds
-ECFtq+v+dCtAvzmWLeJ8305S0OAu0qe5WpyDySz4g0fo9RXkUC5GRuJEHaxF66/y2xPEWmkjmOQK
-1rmFaWauYccAMkm0e68zrJ8JkbjRB+/5Wqi9/C6sCYZsffEQMp48TdNJcmHJWBiEZVWlEsLZsh7E
-MC3fxeAUoaZV+ndaIPK8SYx6X7Z69/j+LXz9uOLaZPeCB5V4QaaPL88YHiW8pAn+uUrYVFjYzk9y
-YR+tiuaUgNqBru6jivL18rkekQ0rkzQ6rKd7/m5Ks1TXBBIgRWcfKYZhz6vyUczFGw8NmAlqSQow
-WjenivF2Qe9VOevMvojE1iLsHDl3pCV3GMxRJr9/EY8uwBd3kcbamhrEiJiCB1vfyWXURgL8OoNU
-drM0C2U/sFw/K4mmVMEwZ92tVCNP86WnIwqapTs3F/CZGmNHaS9SnylZLcJF8Vr8W7w/JdaITL9g
-7qeMAdUrYgcisOvx4BlLke+miFnn2eR2Vrp1jW6u9ys5ifz2LI+MMx7qOT6LpqkrDmivtDp04G4m
-KP7yxNqvg6Rh1wlvqK4Ss+iag5EjjAYCkiUr8iFpXVBWkfat4eOTB21B9ljQTSvPt3ZWUkFuw9C5
-seq8mHzH7eLuulNLrQhdfGsaGC+YUdG5O0WQAdwyl/OOwH3USHwB8p9ltbrhAC1R66haqi1n5tQf
-U91HVKiCu4mYmaVtDJ0u7w+T7Nw0NDMdwEHsSuxpdgcmLMBjztZgpqedbjS3btsN/LOs3RedlksY
-jVYMZhS2DfpjXV88pIgDNQC+ZbU6U+yCABJ9Al+9S2CT2qE3IVwLauhDzwCkjG9yKUkzHRoqudBM
-Sk1d7V79tKYzT+WO0ZjOLVxq+iDANlLbl1AWx0BJaGJsR5qCOIFGL43PBkc6FjXsBB5CnZZo2nIH
-SnhW6qLUQRG3sbslWh8uTj4ttr2x4SWUPkMH7MQ67369GcY6dVGjIZnBBofLChDFcoRSLEdAhXmE
-VeTW3I2HWCHBaiUbodouSAheUVTRiBC9bKsMPknXFYHb1RREYuViSK8aso1xxGVotTaBzkjifgzZ
-PKOLhRw9X4AL4Op01aAC3ahmIF6eW6VfUgGVo5zMHv9AVizzNj2CO9Kiip6QuDuIhet0KMPsiPlI
-JtU8y7Ko+uWIub2fVx5IAvFIQkxaMSGGVjlVUOaes8kHoYlNj4zxh9GmBHXQki0ebWtm115Xune5
-5Fp9ico0MXZzaywl8UY9srrWOoJL+OyziVt5JssRbbJETvJtOAJPxgH2yexmxVdwSNZFtZJRyiMk
-JTkCU9CxS7YAK0ZFzNp0ZdJdrUNXiwCt6LPIHvLac+awWEkshahGjH1p6RCTsrJaDMcA2wKQLLsm
-Wn0edmBJAbugfAPy0nhE4G7qZWxtdIIrCAbtOmLcdOXDyCZOflnLCo0hWU5eREeUTJvIzAlaCAY5
-vo+pzLfWSp6BFAVSK+9XIE3ZL9WOoMAquR2PyBon6/QUotqKsmFOa/xKvZJ2FWJ8FLdKLQYANMjR
-GqZZQ3dTHNE4bH70a9uKxZfUQPvsD0eMzgJvqNmIWIDXsY6oHaSEYHd4U4rPsmnU9sJYuTzVEdGT
-qgq4HiWD3IOLQ33O4bMCmlvatv2KPtiTT1TiVnmeRFkfb2VJWMmZUmLNu1AsDKo3ep4W4kLLaiu6
-EiYZXhex2jdfF1Obk4e48kT0Y+yJJ7nVBaipLXfIda6Fw9K5N6MmJxVHrSb7rE+VFqwD74kVFqod
-LefVqOsyFHlkDWdt7VlTSG44JI0I8h8VdZHbsXbgoyPbXasusb3NhZNEO3zL0XNmRJMK+BWNaKga
-bVduHdhhAK6QOjIlilPpfR+0SlMY8/PFjveRBqT6mrRu3TzDZMMPeJGZ2Zg5kSEfvAiR9BW4mtL+
-uj4IxnNqjlIFG1G3ehYTLTGp8jqnQKy+oOTMs9tqXpAv8gUw6fGbMiryhyjGalHtEZINzuiLjI8b
-oRRWG0ttL+upidAdT27W/ooGegE3i2UWxnkqi5k7P6kpK6ew8iy/ml1cPgGi0Xz6bGqxEW0nHe9Q
-oI6kRofxaHBStW4WdA/MuJX6py5qm+qcmGwk6bgvGvt6OlIxOFsWYooVHX/xyr0JxiGpqG2zvv5i
-IrrXt7ORz8tDjr8TMBpOymWj0tej0ZjE+fDJ1pxBv5XsPnTTJ2NTdy/anHi2LQmyLn4Y0yvbz1gF
-GPqOeanITeOmkR2oXDkRDGyZ7mLDkZ9VZ2pujUgjuK8xiHry67Kzf0C4pHKZIosWKtnvRR3MiAi+
-LcbSTX5sF7yqvdPOPoU8JgreQL26IMdk1EIlsd0SV7KmXGW09RXEhwNBanOqKyvdJpm+JArzwU2/
-bv02eVTEl4UissuE9qLq23WdfS2dggRKoobaZ8lPL4GG4o/uPMh6ro8ZxTl7EYHwyiTA54lGS9F+
-WjoHHhxgRazpWGZWl09iDfgyYaB/njFueYdK0dybutBjFWXrOMz+oHoz6k9yr9A9JyzSTpOP7lnk
-CvAxGNOrn2aVR4o/VZX4mc2x+TmGqtSFYxENYF/GxSIFYKrLh6TSbZiQkai/Ah4ecEQUWX1bK1Zq
-+CR6AGYovLi40pxZOnyZ6qJEg7R0JMilWrQETqaXdUCWcv6M6AR5aVZgCaKkq3s7SLFu649W0XS6
-r86xuPSiClA3UtFBhpnpOFmgUhDes9klyLKeS/0WCM+EbyMpU6TGXpwXG6y33XfXwNbnj84iwXXV
-In6Uak5mIovKcm4vc/PNZONDZjxmZg9va9F+W1xNecB5RlS9vRC3g5176X+OWm/cGLqQP6cmT35E
-Ue3dwus2vhkiTs1gSmLll9FPwxVNjeJ7P7KM+5ADIBI1GBt+zMbo/fCUIkXgizHhm4mv5ns71fmZ
-WWRY8UfT7X56i6x/MPgByG3OOiGLlD3GCmVNO9BdiivOgTN6006dLecBfG6ibYoB0Gcgu5pOTJ7W
-cFeRtWMiYg6y6BvI2oPi6xEMwB24luwunWoLrWxcW9+73hribZURDRDUNP5MDGdo6XEbCHXa6VS+
-TshsK73EiGVPe4jsBA4kChFwPolvuX2BmYvRLN131Lp8r4CiDrEFwodhYDE+TioBNcHKTY1IdZ/t
-SYNKqDvcRJL/1TrIuqz5HGGK031zzusx6KNI14HWIuMKzcVJBt/2ZgzwZuZQ/djVoD95pGGfx0a9
-EInodJAvFl1No12RWwZupSXNHoXlyAlSGaw0nAJVurUsAq03MO1yPWhit9xmZsG/GiKFG1XhDHg0
-Mi1+aHOKjT0m8knnBYmmcxwG0xewiB7+Mq1oPsMxdEmMhzMJWaAb7H6LSUdlj+ctuUd4ZFfPQTLa
-Vk5Qv0beQ8LMydosQ9ncWNmgYsGyE2iiOf6cYLKVrPdL6TTd6hmwrwaFC3NAZN7QuY4ND8Wvljnf
-ZJysPUVVsZpLsag6PrastA61UciIH1fMMSycAXuOwY5r9Flb+C50S2oWWz57ymfdjiIwSMnUneFj
-wrOYTfjJFJdAJN/QAUsh19fib0ksHC00csfLN7ykdu8PHt/d0HZSqG9RVTnnHmEDkH5pLBKOqSay
-CDIEjU+9OWbTdsQQQsZ7lyxMf7wqf54tMY4+hWJ8bUjVeTIVrRAbxKXRRDhE3mEWR+ocqJWl9tss
-SVODXUDeXxrE732d9AT5er/E6m2Zsx5D65pZqtR+wP8CzbXmYbNagUlAttZDIhOH/AIjsy5at8qv
-qwjxYJCgrL9ZnJjqt1GEPJdjxC80FnGWo5zA74Bs39NDuzZjGaAf8lDPJjK9moWuP8oUloMvZT/e
-9qoRs3y7XoZZIRrVArapZt63CNAfyfaIIFKR69EE9M4B2HmuXWg+oHTWVGlMNFL00cM259oiSX9k
-mgFDeaQ4TfwKZxU7NrPj67gMEUwt7Hjxz6qKVmpb4urNtuYGeVvTrlowaiOIxZArWd6wORY/cpVt
-Et594i63c2N33d5zCgBotlsB9mqGzKBiadti3s5zxYjC7mb9BvRbzPYBuCmOrKzuDpxW/6vQDXI9
-F6LE5zrrHX/pnfpZrdTlu4vxovaR7JkyNBLH7sIma3CA0IDmbdRRNvAZl2a8AXnrXWuzadzp/cLi
-QKWRmiGySeuunV1qkD7T2hAiWnStzl3KKhzV5d7r27L4pMFHbvFhjsplk7OL9cE9poe58Nx4n882
-+85sbuA2yiRCrG+4uXYWGagVsVGZ66Ph9vbVlEjn3m2E4QR631TPhC1Mt0Pde19AByYJo5puPM+S
-An7bXJnOrZ428hfmmIGPZR/Z1yO1+6d5kh6NKJ3XddAVmQQqe6F7UEqo03KGAdcyw5MbpFKpMRt1
-y80IObvzY3B2X9Da9kbg6fl4S5Tk9KiX3gT/mKrl4C5R657xBZxdHGu5DjSQTWO965Sazxa2C5Yi
-wiU6OE1rxEpAMnN9ly15JvZxptCX7hskqNhuvQzGaZqObthoQ/Q1mqW4iU2AsWixx2oOZ4S5JLYu
-ehQFrt1WsBAIBS+CtZff4vJb2cgYDeW2aBPvUfcwYPplMhv9Xiapd4EMrEm+F3C77O1iNmuTAND0
-DSJlVEZ5h+vap1uHra7t1XbauIL+8wZ5jWcNDPOZfHhz4DLlHxdiS0i1UEuEOznl+EFETvSTcjib
-PinLMLR7mY9RuzMU2xK31NOeypCzz+wtKlFT3xSRipR9KcizLwHIz1+GaSA0I/bQ0ASzmtD6lJ3R
-Z4C0NHU8sB1vitCEKX+HVxpnKA+bQWZQROhiANiHzVZxtJSq+WovXY5W0/xoO6Xtb8UX1dGUCji3
-ss8xIPEpRRVrDRdk5+BsBQcEK84kYjDeWbUivgwKJFNqBaKTGIFjl6XIzu9AbJm6nx49tZXTUhoS
-s1U+2HJ0klBk3Yzli/Wb73aUUyHPWLMg0yJ6fJwMvc0DJ0H3xVtQuQ828S9FuCIQCXIp8O+de8vQ
-LNj8TQgswp0LfTtkzigCyyujn+VU9FlQmJNjBYwwosNyNDN7npW159rR6gzMJbMwtTLWCUjqTL52
-+rD63VMGBXxb+JS7YVwVmV6APe20xXBB2jSYgbBhK/Uy5d09JrSsOhw7X//jPHnhPEFj9ltDMHzq
-n/7+z5dP5fN//C+cJ0//+X+/P700nxx/6J9RYeZfzKcYgBiYLmxGYrQr/zafEBXmoHCx17Y9LSg8
-u/9lPlGwrAB6IriLoEqUKIzR/uU+cf8yVBQqq4yeYQMCOO9P7CeglV72oVF2rIljMIrQhBBCdqoJ
-ySOeuaoQ5MWIpH1o8FE/ttoQ35nkIzlEQvVKf9D49j/UGK5+xgU56KWeUVwbTdSfx42sfzlNFZ8t
-TZ90WzVztJlPI6kVvup0vEBRFGE7m5uFwMgccUsRjDiEaZQM+ZWrYPsKE+K6JduYNv0uq5ru4zSA
-UfZVcpbAIUbkR4XqHIlv6NPibx3bOHadTrGa52n2EQ5vRATkIFJqpzAy8uJyqnWolBW5COx/Ccop
-+PQp9O3cuuPNUbOEBuQoneo+b6xhpAnjCo+FfbHuXaQbHXhY1VJ9YxzUG2OZXc0vsItdpLzayeXM
-FDIPHZnqjyqvutgz9aVMSUyluJqLdMJVHUWVDRNX6nsB5bggPiNlKtRWwJKYRPXiVoV3t4QKvusf
-nlt6hBA14lYBxCjDqFzIL597rbvsTbc1bxnBmMsO81pOP3JyI4K+FcZbkN5z+2CvuaW6Wk/fSl0Q
-a7RUwv5E3mP6xAYdQZGhRvMYmsikk7Omq837Gq0AsAcn57NoExE34anNB2CyoM4VJkWupE9prIFg
-mdeUl2pfOTRK44jqpVrUDTaiWfO7NVEstYZE4XID5UaAsIaOoWgmgMw+hpFFx2Ay8GTsjEjT1O7q
-Y3SZc4wxm3qjvR6M0lX9YpG6WDlmg/vQHAPQvDULrTnGomUt0SGBt6alMXjrh4Mek6FGgBNxaqi0
-vYOcNRkH45q3Zh+j10ZFy/sNeeEYj7xxTpwdAQJEtRGwlvHYFRGJG9Exzq0+Rrula8rbfAx8G4/h
-b2xYlXtnTYSj/0E43Nymivs57iShce0xQK7ry84JVGzAYjPnirkb1rS5apapssELTxQBewmpUF+T
-a4T0l4gjLYY9eI4hnj5jc4xB6o+RSEIzakaSrcvGul9Tk5xjgBKZac53DI1LAshqcYzQbkaY3WZc
-EL2kHmOYiGUov2hrNpNcU5oQrZNCYh/Dm8au6z+x4Yy+Om41/4LdRswTEVyls/GiiG8I0jJKsewY
-C2V5fXfPTSIsSjZT2gNEm0eb3roomm3cp/GjUmBA9mli5/fFgvPJX5y8uKUGGkVo6ZH3TPtZ17fj
-mlkV9VHPn9cgKy9dQ61sqoHMV9esK4I/kn7brAlYRpnKrxUvrsU+RWUA5SFNNw5UH1OPOBPF6Qac
-B5FaFhQBoD+mE4NmXFO3lC6nlpiOYVw9HQudcUnl9kRoOdrVdEzuqhL5wyjbqA9jm2QvQRj0l7JO
-H1RJowsl7xoBRhJ5d6N35IJpNAERKeiZZu3yY3QYDaARyc4xUqz12OiHS7tGjenH2LH0GEHWGnK+
-lt7o/OoMlR0bCW/O92rMRR0sdd7Axz6GmRVGCd4Vj5oLbsDqYxzjQ1kafj+q/fk8lVjToyoydD+b
-LAzYuk097VFUi7DiXjwq8ZLPQZlV9ZnI2BSFKa12M5ixOtehNjLwoUlEM0XS7blqDRNZomEV431s
-SrIHesZAbDxk5NHbpiWb79n+f1KjtPhWLJ52mcwT4WgsOezki5pbCCEFNaCPgq69qnLiBbgtVA++
-WvNGVNNML7iQgiS7GaY1jHdQSte2Yhq/zAE/rJ8qywxffSzt6ziNhiKsVfj0CNyN/FmnP/BTsWMm
-xXVh9DzQmu40gSUz+wHjfOps2bU3STgTksbwesxAuPE1XXBEGAxIQ8n09NBJVZo+gW8N6NW5c8SZ
-4ojo3Cg6tEhmluNuoG2RSSIVKxJdQGRjU5e5Ib5KU5xHEmrlpyEGZbWJR9L2abELMjxitzbnoEOl
-tybIRPPd1OiOOJixNly2CeMmHlHN+DKKkpaTgbqnOktUx95mdNisbRHn1n1tCK09xOpAy80zIrlX
-REzxxyZYfxZsAi75rtjcBGWOh30immlvqfQCdzmohsxnkESggFFY5S2Zgc5zOyvRzBBriu49XEIk
-IQwpiCMu/dBu+mqIu61VJGLP4+O227FRM8vPZpV2XEsr5nJOMkPfjMUaYOFxW6+npaeBIaUsaTWI
-6a5nCX3QF0Pw7mRa/6214/RMDJKgUFu6CX30eazvvbFBLQkLF3xmnrdsGPvG1j7FxBclm04d0ifH
-XKL7hnEccod2SH8YqLnpi2eJeRvlJtct7cbxSY9n5adwJpRAf159fm6eq9u+fX7uPz01/74Wrj/q
-hgWZTOij/fZff/o8Prf90D7/G/9j92+kPP58wl1fnf7Mi78CC+/ftfBa9b34w6YiC2++HrgZN8/d
-UPzjcPFzvf6f/7//8e868m5uqCOffhKME2Jla9Mf/e/FpGFAEnmvAr2rfzzx61TdGz/1T/+z9Rf5
-YjpCIsL+13+jzvyn/1n9CzW8TlAbedQkYLiM7P+ZVmv9RSVDNDbKB+rMVSTwrxJUM/5CAIVRgdkp
-htE1tv3E8fyeA5p681QagOpaW5VioNf466xT+UUsDbrnpJcHtTVXZ7XhAqLP5TRt6ZwSwBXHy0Ga
-i94iDnVzhRhCJb5Hvm19nsahByLfmhvHUsSuIbEkpBitmPEmzyBFFiYFuntGXBgLoa0I+1yF4o3t
-ADblpmQYvlXTafyqIsP7XLelCDWinvh+jsqP1NOmJwYq27qxrmZnVA84bf4fdeexJCm2pesn4hha
-TN3BdbiHVhMsMiJzo9UGNvD0/ZF17No9PWizHvassqoywgVs1vplfW6FEbxMpXgnAX36dGjReWaU
-jB9to6+vhKcYH7Ywh498brr7wtfCUsQ/Q6BVF7Mtu5c+S3witcr6h576kaohUPQd/VjtLZCeDPvG
-sc4ZvARPzRnqeSSKtmNlDb3MGwTmy8G4FVBKBzW4+b015U88Noxu29tLTd7AILmrY/caN/GyEc0M
-mUkM2kNSfXoGp3FvjQCspk9gSg1I2+RwMxAVRCZlE49bPX0jW4MmJEuJl5ncAzJHdfBTCLYTkY9H
-t5hvdBaKcIFg2ivd6fdBMue7aSrWGlro8FB5GWDqRGVAVOeetea4jMcsHuqomMZxa1MZ6m0bAmYZ
-140W2Dr2Ii9O9TKyLEKmIg+YuPjOWx9JuADGOhAT2wVHbZqz2wISPq9Acaz5p0y62mufK3WWSV7e
-RohGlvY8OJD4pIVOy8cTzuNc7Rrfr3Z1Zec73cgbb79QD9zxb8vhqx764pElTOibynYjVNzZwadm
-SssnRjk1XPLs2+h+QZMQ/7PsdDufD0gMPmwl3xYM7psyfrWXdJ/H1b6NXdjT37Wd/AlSks5UyhZh
-/NZF+TJkkFQCer1wrWMaVEfBnuJa2l2ZryWb03WuxWOfl2c/js9tmRxmqI4rQKEVmrUE32GYbE8p
-NTS71ihl6NhE4M5PQ5qagAaz9jAwfK+jWVPwdJZp9ZwlPVkynWFHY+bfmZpXRdIg0c6vDl6cR2kW
-HPtOj3wduYNJJ6U5fkBm71Xr78zx1xDbD5pDrpD7aCdv8fxpTDFxHvEYM3r1W2vqrZ2b9uK6GB45
-XaQoVXm4lPVOFeDSqdUB940P5ESBkwbTDjprP1iQjAOAxJy+AcwfnLyJer+9ui4TQOfKTbP+DPqp
-N0UPKWlCk/xZ4CMSrwkTj5STZty3Q23sdUsfwzbIXjD0ZcSuiWdYjstQzN1Wt9vmT0FQn+5r9zY0
-RuEEL33qvyQ6qaQArnqUas3BoHXIbn6nibOmnjhh6UKVt2DnJMoTN6MUoXg5yw6Bzw4LV71XVsE+
-ouufVR0Udy5pXqHN1EKO8ZsRpJGlqm1Rage2su0YBHDGLk76xfwzUxW4T/BR2s5Dr4sf7to38FAE
-vttWBLfSvlty67ftyEehi5eJcFhWHQlxVGk3mQPFp0P1ZRRavh0ENUVqyh4JtjHoZipusW7exT6c
-pg5xQBqNfx8b6feU1SlBNOreqoaHyXE+hql9W4PRsKVrlyUrnghIOPvk70RmJR/0vviA6eD6zO/q
-FQozqyO0XzRQPbQVdTZvxt74JZT8Vl3/OqCR2coei1FZaL94nnyBsp6NwTwg63ltk/bFT+tlM4rs
-M64IElJIPXtnRpIo/YfBn/aBoe1UOtxIqd0y37f39YRcok2ynYKRlfW3X3N55tzfi9TPbn+fWEtY
-1Z8TEWw0cl7YWLa59m5NBNp0RNoJf/ki4D9UbrYPhmljYSjlAh1gNI102zbXJDAOC+iCdIfPUZXz
-Vw9dZpYoXvKXJj7rHIO6PvyZ3f4P29amRGqCOIVEHzDhP1PbPdD5RHI6l8HS9ee4+JGcC8TXfsYt
-OIUVEJmm3fM84ppNzhqCbieGDqI/CjQBCEMT2tbo23LrNNZDG8vvlvazXeBWb5Qg3ePdoDS4fvHd
-aYtc5xehUFEdGDnUVwvmSqF5O6udJdW4Lfpxuzjjn8H0b9miv86GuLY6PX9QTuQrVqga0E01Geln
-I+IYXSX5MZOtCzMxqy3Ss1BpZIUioNa3S+YAghfwk4zZLwJBByjtgW4N5JVG/+NW8fOkE1oDsXIu
-sxy+JCBYbmzJhwKcJGJJA/JJ2dM6B0W3kZfQ/alL1M3q0k+Xo1PdZZ21ddRwJ7LmB5Gz4l9nl6m1
-+ZAJvCrhbTZBivEPXTDaQ9Vf07l+Tcvm2NtxZKA6YUfWNa69lETWkitBrzHHBgnXuvk2lbJ/08lO
-+jM18wx9KBSUlTwonQV4JjhtrzfQwC1H/ZassiuHzLeRFrc8NrQH0pYjmZAu4EmbnrMi2Lp4gy3p
-3HiUryFoVHvapHbJ4qNdfpyujGJyOsfhydaTc03DQ9y1T35qsUEY31miV7tqMAZSxhpW/O+saTsu
-xBR2C2pIs8IuJs/CartTW072TSG7OCj5CcTWzg7ifzKGSiLXux51myIBqiNDzlEM4EF7j0fr2BnF
-wVwE6VjxNnc/Eq866m6ycywSt0jDLkbiT31m/+qkTHELaoO4tjzMuH4L7V3CSCTJjfAlag23kiJT
-tyfE05UnMxbIV3Kyq/n+ApPJQQ+RI/n6fVpVZJgV+ySIt9aYXPXqu7LbD6xyG8iZrZrEZXCLUCX2
-W030m25VYU02pczVp7sU24nJgpT7EXVYfY1nzAvSOxhmD/RtAcawwXlJNFvWmXR4FKA0vKFi7Bvq
-OtHJ1UP5nhfWcZBzAxJ316womT9+yiwABtfCwlgr7i2QQnNXGTHgu7g4zq+stu518IlWrXIYb1/X
-xkPCpWJZf4BlOFjEqbHqLfjTyKbsLyIqPfFZEleZ6W9y4daR4Gd9cesopyM8XIsq2dKYAPlpq5O0
-yBvNKuAjA4FB5yNckCl8bC6fdSLccmKGp5HoK2CdIKnrHRGsqG6W+SB9m3x4e4jgqOs7ZksqAxKx
-5pUm65f+zBMpdJhmkiIwzkFFifnUpD9dKeeb3Xg7Nw52cyudEwyiv6Ph7NtNi7sK/BHeLiX3Y3CP
-CbG8o5ffijnZETL2autGBMF9R84PJ6K/aT3Z3HkGqQx8RYPh+JsRL9zVD+Djk/NSEYWpMexsncEF
-oZ3L9triyN96C1qYrkufW8MlnZJ4LtASGYQjks5tPoO9bu3WDkez3yYV/3sjEFu13UZ51sFI9xQH
-7CuH0Lc6j2hMPyrPI94x5pWKm5tqX2kaR4TNQmWN9RmP7pYqgWvSjuVe7zxCiEkP7/4a9afVcBa1
-s3VX1+pkTHok8VuDNh4Z7SJqH8LA7SLPv0sLDb0gGPCURLoGe6mQJ1lG/AHmvDXq5kkiAjIqmN4k
-n/e9/Ts23k2LKWkzpFOoaQOcI7o8zDAIswob7k1tMmFHqf3YDFemWSLSC4yS9sbvD4Y7Hixv4KYj
-rdUaul3uSIfJFu8O+0rpmgcNFW2Zv/arMr6rL9bim5FfzKGV+buUDySf/TE0eFAeSOcr+3eC+hr9
-wZ9fxzk+oE5HQ9fuSJZ+1aQf9cO8tTQaFEYgCGSVpFjeGwMa9VL/DXd3wBa74mU4sfJ94rIPqY9k
-IgUv8F8lB7Pw/5hGE05FezRKFE3C98IkNTc9/zJlpLcV0PQ4Prd+EjlcIMGAbAEPoyimk8ymUOTp
-zlhcDuH2yWmyPmIQRpCspQ6j+Z1RPJfBe9YeVaVdncI9+XQ4aCKIAkLoOQmKBJaZSP80B7Kuckh2
-01IpIaX80E6LYmB20zZ2tG7bR9yj7fqF7t3ATPcDf9ASxvnlPBZOuAD0n9D8yVAWX5g8Ptbcey+P
-y8geu6eKc191wwYHJBrW5L6kOe8Zjfn8lNTxxvVuTpDcSQMJtlnt3H7ecxcck6Y8SKdTRxe9C1+7
-qH53TesdBNpbHOubss2OcxNzjDibfI4fZf9almR/BtZrnyLGNLqNb5ChAI/5HFtppKMbLE3gNoQQ
-SKi1fWcoLsJBbeBw5CVHAQ5Tu5cAN1z+Po/VXrxwsDy0ur4PAHkok6ADwgbfik10FpwnE3yvNBoJ
-HmNODN/QtbFjNFE6z88+oPqilnOcl/sRIS00p42YmIrAkwGot+gNDr1ygq0kCJgOit3S43UXQZhi
-rt8uiR8c+u6ta5lmyJbKxiIaE8gFSR1JcqXFotmmnmKYEI+25tVXB/nYhuBBnlAcW+bbgj5rsLUr
-8czcw0Goqh43L649vPVJ7kSOBiaK/oOWYGK0zZoZ3sn8bZBn257zZMjOvsPnq0fZosKi9QRZh9dW
-5Bcv+U0008axfw3ah5rSYq9nFTmlaCkb5xHS4KwH7QbZe0Ro+lObMj4sj+g+NnH+1erPyEUOMd9W
-yj68tNVVgWI+1YFZbgcHWdrs7LqkZK3khCNEOerq6WhkRLtWYhl+a1PP8VIP0VibZzUDL9aaQWXu
-mN9iP906c/xBH8SxZ/rXSWonziTsDcsD1muKszdZZ89jWqVrJ0pmrT4R5kpuwyB7GI52OzsSOTdL
-bJhXA7IHaiSybNcRU21HrBeeOLsic+dtbUztr2Kpt/ZodyUCZ9rOQzVmcbuOa+XrHGPN7he4XJH2
-v2PlX0Se7wKR5oeyJa80i22uwETT+wv6Au/YJymNWOWka9UhMYZB3EjnaOQDXuvJCEet8bQTKtST
-nZchospdnPZcS3zZDNFM4vfgjSy1fgRtzTCZa98ujSVT0vG2+2LrOOR7m/PdYvghZW27gkd3PB8s
-LqSo6QAxKavbl8UqI09iFoEsI3B5Q3uST5wxhrFT3JX876Ny39BGd79cYILQRLsWWuSHvi/LWN51
-Vly2X4IccIUiHSH1zp2Se9oB6+aGg4VE05YMFS0ktSYVkV7VtO8WgfkKADKeENPMt7wnw9Wcmvq5
-5HA89n5X3/BoAG7UTH/WJlfan2nmQBsqYGyqhP3fS0keCPVssb51HU4ggv2JTMbT8kitinijrqSJ
-4qpZL8eRb3lx4TUlD4JZIBBFK2xedK3+lWvK3Tm199g0VUKULG/Y6SsbKbxfReOYDDS78/qJ6qTn
-JW3G0yK8CS8IG2ya9MWv2q80VE1I59jr67OnVmTJK71PPSuQczBhquepDLzPFAOVSawMf8aRAXDi
-p2P7tG5XeyRAwUUfFH/EFnn2J5eNwDEnhgjkX+mD1GRwQakL6OPXc/KAFBCsV9Ztf/SRK15zHoBX
-gGr/2pMAdllyHg/SD9Kziif/jh5fPmRMkGbnPpPIU5+SZnAPknSqF99kJctJvs6ripfE3awfbJXp
-BzK2G8Ka1TdQV/dILLra2UJbX3qVfakFb6BOsVqoyqDY+9rcPqlFh47M0/U19V1/lNLlf+xafh44
-UaSqbKSPYOan1sEY35TSXvH8JG/SoA8GYTEj+/orZdP6ezVK/y4pZLrzhkUewP6tUDqr40T1zNHr
-7xR1OT37WEFulDXJu5xvl+kgJbi9rZKHxh7loe3rnC4V1EGd96ObDT8XniOkDCm+2dAWd8oqC0Ff
-wfqPaJhOdcOvVXhjbjIIeCnFqHa1q1lI19AYA0BOGwiN5EGPR3//zzs1/fSMBCwG1rCn1bbzI50k
-g21PrA9M3+aHIFDpoJKBH7x+tvVY8IF09NATp95ENaxiRFkVP7hr7pUicFs09DWlzPfo7eNb3vKy
-a1eySEN8WwwomsHMurzBUal902hPRNHyxiyuonYuvyViFsKD+ID1VPvRhWWHfKpraGXwowfcEIKo
-1X1NGP5W4hy69uyWH1mlP/69mP6+gEWfv7RFfNZZCkbYTcWjQBSzXxOIVcwL//vi4GXJDS8lb2H9
-gMhb5AVDnbK4EZMflBwOnsNGDniY66ylCA3iWxGT6IcKC2Er9Q0HabkMg94UXGTcI80L+BiKJRU7
-vg+34cOudZKGJSzx3h75etATfFqx3kZ/XyYo+Q8dmm/1JHiZY2CRMUsqObG5wUU14u3vi+vjTG01
-OKVHbjn2IJvXL1FJvdtz7KP345eQPHvi/K12gmbJUKj1k+lZsdbPT/n2ibqs+6qtVrPCD9wbJVTE
-5rI+JHyFIxykEHQA6xYvhvwhsv74DXWLrtlIvjUXpwihUpyJtqeibr34aS9Su4wbnutJ+7GC+FWi
-KQw95F47RjT2N5DBjW1qr3QB8cZ8fple2fc+bAnd28NGMAOGSbwUB8Lx+39+PUkTJ/LFKUtZ3yVq
-fX7CWMUHknq+7J4fqmVcWegBuMVJmO9xe7X9Fu0Zl3ZDZYBuF/0RGa8f+YK3jkeY5pRgOeXm+gb/
-/jiOnL+vqpuG4EKnyRVZVrvHnGihW1gvFNnoB0lpE6I13mGN6/Tm0yIcKW+sTkgDi0eVmlZY9ZN2
-1mzl3/lO7++1qatOuao5L1qVPPy9OlW7TL8IOuhoYrK0sxR6cBEjv18prgxsBf/+qu0ERXAz9ENE
-48KsoRHl7Pl7R4mOE+cfiqKc+QmJTMVGwHex+GtPrEwgEcjFFpoDWv/Z8HEmoa70OYfXI63t+C8i
-5535FK28F5rmPQzpp9uZoOlOFe/SQVjPA0kEhzgXzXOvq3YbpIZxQj2mhaue8DKZg/4e2BlH23BY
-Yfa+ZRAVXU0Ycaplex5B7kO3lNq2V+3NNx8DZ9zZRb2TrXiEomar12Y0rhN7AJPfbk4kMFXi/Mna
-artYjXecF+u3W1rnxpseVS9/BxAeEU0EkS+9IDQSy9lRt4lrdRyO8cJfJp67s1V34BI590OjvSZL
-MKK/nU/9qoN0KdBhHe1Ooi6Ke+qYm1vDPwSd+h344wcSz2rvtvKrtrXLwNSbsQnZQ/NJLtU9ieKQ
-ymXODv1TxJg3EvKptJ0cp7fBsn/DMMDpyy9OsHurLtwPvFffVACec6EdK4vUflPdJhuBQD9VR3ZO
-69Dp4xBi2vqgqWwNV3VqjuP21mIGqIPqYRD9Q9uk3yidzUhrCN9yqr7bz7Z7hKmnv9wBmzXepqF+
-6uxqiVheFux/iV8/VL63sZT1grr16Az+m+3Wl862ggcKW2hJQ9KCWXACXxLx0G1Y1n5a1RxyxGF0
-DuWUaWiNjdpqfu2SjLtRBPvOaTs+XvOVHET4LOeOkegLt0OUJdJ8JSL295DaBxXEtLebj6myd5pV
-RLEbbAhaICV7utJFQOOZSaC+azTtrmozgcywfZlr1D4WKgCSANEqhn5vwxfYR4YzFB86fcjoUsm6
-OdeO8eiovgyDypiirEOaPUGYd0PySs79Oz4EO5wVjwZ/YEDucrKEwcVIMKs2tIqdKhc6Q899Zyt0
-vhFVNCzqVR/5aWuEuPf0A64tazsm9Wsnm3fVpm44LCPxhFpQ4CgnoF51jr0ZOKXwa/qsyHUGXIGf
-DoK63/ajJUIHs+mTHD6N2A+dhndjxqkX0gwBD0Fu9ykopvxowHYfGm6mTawX00vBwP05DnF21BZr
-COn41I64X8o9777YlH5vMlj6IPujP94wuxXoscclmrOc3iQ6hJAeLfk+qC38PZX20GmSPdtOSQ2X
-bgQlif5Ba+1n5F8/MD7FyYjXXsWkRynDSbGzHTc9mwvaM4Y8+TYa7RCC4nf3GOK6cKQzbv0F1l65
-Mv+TK93g1PR99qiONCyjcfKrZ435e9qn3onyN77kIAl2Lqn5zDloNOqxCk6CCxtv0eh6R4mlYUf2
-tPUqfITgqmNuTfGNsX1MmDEHfTCjzq2wHzmzA2KFjP0kKy3foRbgy3CE8TnZJPXbnHU1DXhti6J7
-ar85VhEno6s/FjKxsJtqmf5JDi78v9uU4uwICk82SZ+WO9G5HKJI5XFmld6ykY7b3PVDCn04z95r
-Fmjxdkp851TgSgwNNGvo9Rru3QKDJo1fNP1tTGOGKhIMcBvaSbwNbvJPlxTSDfkpIHTLRMQ84vSb
-dAbrjPIq2GQojCjzIvBtoIHyMg0FtTheU341fpIb7CWBfta11mAtN98bH3OQCSF/bGqEKH5fNv5m
-Ja03jjPZQHuDxwVZYwQI9YpJVO+DOd0vxgzYYKNUNi1rPKJETlRkuy0TIKFG+iHlCXyJiX55R2mZ
-fZFuuz6ONOpI8sIMLnQPMMdNrn9n47/ba0sTPIGKGvztJWh+fENVe4HD4uPvyKsUNnPkvcQLgTM3
-+YfsXQbcOtOCjeMprKPjPC0i/GdsNeh98Bffv9q55FmZ5/ipl94FK6UuaonWr2BbazwyAbaheyBA
-+12HSo7oP972ZsqG6UcYJmdzLs1rLviiwzr2vBTsVqErd/uFBpq0797VtI6kfsGQ9s+gjVLoQO2W
-g1uRsgEe9hUzPsWqxWPXpuKKTKr8KhYLb/JYuZ+YIuRtxmr3Mpp2dknbOL6b3cJ51KnXOpQ0j4Vp
-O8LvFKazHIJOxxZQodraLzg0QKvTFNrPVJQzJla1z3OenbhSNks5ei9SS5u7walpSlrSaZssgOKi
-ScVtHjxm7IbrTi/dbqevejQReI+mJpe7aoBLB+LugzBxV2f2MpcBoFfq7CGukZ56g0+fVkXEKACJ
-M/wxrTENk87I6Khb1JlAXMnOXS476Yg5xM1ZRovI6DGv3ZhGL5PdttLlBacusiivTx3gPUMaP0DY
-1sXGWH8PASzB9M2A9QJpe4gGiVvMGnXtqkGL3xaBD2tXQ/Q9Bnz0a6PW6kpvZxRdpAN8pIVR/paT
-KPeOW2sVAAQ4Vj7YitOYTsjHsnDiQ4zjaY8h33lzHA3GluTv9KfwEH5iufONm11rS1StHnkW2P4H
-ob15VFOJuBfpnvw0vF546+/srjQKmecBb123Us/pMcZbkO6qwskPjkHTat/ZfECjAIHE2iouiajp
-Y1sVvHjQmmC4ON7oYYsSptp1OXfFGsXhvTda1lyQP7VjFKR29kuaMSjCPGbtfq5H71r6I74y2lLN
-DVFD+b2XJGaYZULgLm2tFdHVu1yEflMxMvaKa1fX1st+ne4bV8/PRuszDA1dT72lbG1uFtTcPKWN
-vHissBXcFdzBZGDWNY0nOrSoQfa75V+HePDuc62heZPkgxeoOpB5xvy7WNMySqPW8AOwoNfCJfPu
-V8CmzSbVD4Z5qddVZZvwXPWvftZyU1VzoS08MS0oS/tvwkJj0QOE5tPTzsWUWkBzjL9aZLRzDnxm
-ob5mQSfHJqiV8eH9TW9oxo6SE80d7ewM/IaRw5t6GS5GlpeXlqyfHxzM6isRRfY8DUZmUrDrCeS9
-nXIQB/B9cnXxMKlDHkLaC0EylCAFeszGNdDHCoQ7iZOmLRRTAafAmvuJ6VwQ3PpXo1TLfd6u6sZi
-IOsCMc7innhWAymPsdO9YX+F6MwQhEMjGFiltN7wPtBkLyRWpl2UYqWuNk0PncmqRIDFZOTVkaP2
-mcLmh7mpW8KLazxnnt/8OLM6Md092Xg4H7AAgbXb4jDOhHlKfFkgTSMAO2Y39xEFpig2lZp/2e1w
-P2M3vBRCAy3ETS3jxV8PdTd3WWHGPOICtcMU69nDnJcO/nFz3Out8KKx950Li4/7gJN/2c/phMho
-SNqHrkjs89h67qfnijU7mcOoDdbB0idKdQly69eUav1uYr44lXzQqK6rGDX1qJyvdHLGc6noRkQ3
-0MHSON5C8XSzVFbYa0BcBzctp+kYTGsB3yJdzMRVkgXTXjVFdRZYezFGap751AwDXY3ce+PFbaSx
-TywEPeDtrq9C2kt03t9iz16IeXEiZVpmp0U5oxVZsYXXODalempYCb4dCWCGWt/4HGlUPsytoEnQ
-MAwG3NgzXy2HmD74/Ly2EMCbwS+LrzPdBq4DteV4/iOn2shtWHn9YR6D+Zt4R5+mBPxlrIc8ALQD
-JkqMvw36S6Nk8dJdFyZlSeM425dNFWTbuJkztNuZ492Abxn+p7EBqvN59cSrgDLjc7JOqNubl35M
-ki/horgW5EyAgJWAWXZl36Estr45RtxfWdME3jZOK4+pzSg/OdaGe2p72susu+O7pLGSmU0Y/lbY
-qNHnAA//tDYhU+tHAeYmrRnS4Pe14a2pQZY2AeY5ZmFpoQjqnGM/F/3JrPzqyYgn+Qw+UdKyDe2G
-Hwxv1Oe0pOrJ0hz90UMG8REg+49GvRqvslLlIyCkf/DcbiakeqivRtKI3249B2clRP7HhVyTsKtB
-fy7MFjs3i9g9XV6sC3+bKB1ur0+vbYv9pIb4aqL2WhusRidMm7a4TI4SdygYoq6iVDHRzHLXikVc
-gL0Rmhg10ouiAqz3MHsbQtB/2ZiZtR2C5YMcWXerCP54n6va3re+c0Z5fZ/j8dwGjVUSRxBjGzQx
-p2zGrq8Pqd3SYdkwDJfJQt8m7iMy7uPipM/pGLWG9ohGtnmg2iR/FKaId3ZZsJXW8VWomZu/0frX
-xuhom27TDgA5dq5FX3gfDq6T24Sc8I9YrPmaFHmmNkbSsxXUVA9bRbBn/rky8WQPpjcNh9rIg3vA
-qf7LGZxsX+i9/HK0oT3FcwXJipxqLwZBZWRhG3e+SVeRt1Cw3eFt3HViJOayssc9ICYuC0Nqx7jr
-aa/vmsW5aF6u8HOkEykSgRD7ckqy0MKUWeD+1407raMFqaPQ6pz5kxGxg6Bpa5QfuWoOscHu86F5
-zux8L3Kf61qZdnptYHFOhbS6e8oKrW2ZBPK5z9v5xMzisiGDz/yDkiwc+GemFBAV31jwvegS2LQq
-mKYIeYByE+I4AyxHNtR+JGeNRyTHuX3rijqNwPvaXV+g7u4TbQ6VWq2mCx3dDSEENxcN3oVuK3lq
-eiu5wUbnUV8n812iFfIImbQcbK/exr6ViO2s2caLS5/seaFJ9NiTzXMHJAFzLOo+vXoFeI9ZVhNH
-O2xAxYa7NTqtuGVd5eyQDwfXrnSD80j0HI14GlOAPpXHoWj8nZt71O/G8yyOSdzwl5V5GKqyv2sN
-OeA3BLTTw75VXXGRsASEUBjjUD7BSzQKes3v0RyTuYqZkNbCjdX1LY8zZ1HPTV8Pl9R3KddklAuJ
-wnGY6jlFBIsjekloyA3pL3hlsSfCD2mmcVFs05uECfG+KEpAm3hsuJrBB1FNLcHFc0qMRLFpY2YW
-KQ+MchiaY+LiQ+4lmRUaVYxHTD3xL99LCbApp+yr68r+OFo2iGs7GA1EVylQvpE2CIyX6MUjjnnx
-Y7O6ncgF6E/5PHGeA6DFNwsU6mzPBoj4XBlvg99b0Mvs2BUdDHDvwF8yA1HrEHLDFdb3f7G5rAP3
-rEqwU9SNwPoWtuPfFovT299ON2I4unfhrxeNB8gJOYON1LHT81/SoGo7sDJkfkdPA6Kv2Q9AtVJ2
-F1k3zPMddpkfe8EKurFrPXmztRLiVOHbf9RRZe5oYGQBEHnPzDRAIoDqMDH8BUbp80KUaAYApW6n
-f5vesi1cBVnfz1+48RXhNBwvlJezabqYGok8oM95XnkozIyhJm3tWbJq7eiNfdW9p1SiTHP05Z4q
-tJUQa7C8z+AclHURfN/W94jfCaex1EOeTd2OyuB05zKVbID12hO6Ke8mEt0PjYFxwEA+OvOMQ6so
-PX+/aN5ppv5ii9oSYWJTMhXEdbjk2kSVEkQAfv1cN0PdQt2g977c5ZW/XDV9wlE/BO15Sm2TMZD3
-WCN7PlDZRrCz8px7KzjhC0Cb05QJnYb+9C0Cvlb6EEBSyyRkW6u4TJlSeUqxRuUcz194G6bnvFza
-J+aQ4ALBhYBVZ8n8K7atWj5YvR/FD7EqDKt+ZrZP0gHlHKeZHkAqJtdHLkguMGZ6Jm6FXTIdUCnZ
-PM2GMJsSO/743wv179Lvrpb1n/6/C+7/Q7L/f1ikv2ZO/k8i/ce6+0rL/3CJUqez/p1/S/Qdesh8
-uHLP80zTcLFj/j+Jvmv/yzddZizk8WTmebgB/q3Qd/5Fpi+6fd/31jYyfKL/n0D/X6Q2rT/R0IPV
-Y4p/9H8h0McP9J8eUcvDxGpwDlDrrhtYT/9br4OYMopfgeNQoqWombjwlzQUU1o+tbrZvslAz74y
-T3p/ikI6R7ud7GOsVfpnwWI7hmksBUa5pkHCXk9md2dinyMTx9LGb8lq8IAJdNRQWGkxzaz5bP82
-jLh/83k2/8a+hpyA/rzyyZYlQo6BxvuvQiToMRRZFy2TFrZ1JpxcxJTzDrAiHUKObseR09yXgU0U
-UpqhPYzG3Omfe3BD0pXSyULQMioNFdyMKzys03gJ60onCUACWHyXSNKeZp3jZF/ZncR4xRy3hrM0
-y8ugGQ6G0461fQP8ND2PSqxe/Tl20do2nGobs6rclfakEx5bUY+5duTM2cSesi6tA1wT2g1ycMc1
-uiGikCX9tp0lfQw8KzHg3hONUAot1558TZff5tC57zgM4dvmQaFNzkWLYtB39eFkiFR/x+eu3syi
-6eFSqhkZkW/2efGgc/UQRGroy8uSoRhDrZAREPNf7J1HkuTIeq33wjmacAAOMSDNXuiI1FpMYCmq
-oKUDcAB7erO3A27sfYjqbuu+NNLsjslrd9BdnZkVkQE4fnHOdzS9FQGZvMS1Lnv7m2Fh8UkmaAWg
-CO0/o1s7MK4sT7vAIFw5HC1p1oubV1boV9TMdojd+aIJWHTIaJzGZBvAxSVevJlCcwMGw/yGC4M1
-t2xDtrMm/o3olOWL4/U+hzov7nDWh1Z9D7l9uNWG5jGClX5hTdksUTUprbzJIa3bjdl1zpNmLHmM
-xqyhD/ZKFjuGzeQJpTSyMxDyxiup8rw+gTZTcZZdRwXjU6BfI529ZdJS4ID0cf71CoVLWROxvIq1
-9h6HRgG+MhNW3+eQ1ErgOVxX2bKooc1hblBhw/jBkR+/sMDiVVahoP91lM0jT1Xj41wuvrdUlcF9
-JENcemGoEkJsSZrIDnxBOa4aFl0wB+JIY5PrXMiOQROoF9ySctn3h0wk42oUr442UC8QDiKjnWlZ
-zjawhwFJBeyMZc7F41V0cY5/MFYebXXCI5DhMxYXclaUexpnFN7ICpU49X1KH9a1oFJVRIIyEpfY
-Gsi+7DUPFteqL3BoUCrVdT5+a1C4xaHl87v1q06gcArhhhhzNwgCVzuUEDjCjeCUGoXb7GbQ9hdx
-nAG3gbWboaCDn1D5SphrnfjkocOL8xE0QHp88twQFTf2FXy0Y4Yld2JsBZtRVbYDsNlhWsvdTzGx
-xPW852zjP8mqjr5jeq1vox/jDw0F6hKSk1CrzNU8gW22JLdz2mePZQhpC7rb5Lz2IOgUIRGt+2SP
-JSLOtACDsEPoZKHMQw1DV69cYt2dUYU7jL+EIGVBJp5dwZjhKJwpeiqLVCOJwWQ7YKIDmpS6ie+s
-OsaAXP6B6JnuyhnNk20nq6r20oRFQtlxvYWl5qMrzFcbMAZYpIDp0KquZOWu61z7j1FcMzyg3DE5
-IFIWpTOXcbAL7N55nLliH2HUoDxx0ig/Juj02k3XK0nzLwdiUuu+EN8dazAgIrTXbFyRKvfbOkD0
-jH/D6jesdTnK6qCgla1Cv70MjAGbb0Ov7h0G3F9H5lPc+6mSDX+N6ACUREMWb5ROu9cGZc6VMGnq
-OKPVTWozd2B359nXllObb4hrgp9ma40/zc4IfipH1mjtECRNy9KA/PHQVzFrEgTm0ExFYaFSy9E0
-APQgu3AUiHe0Roa7imJGSysVzPYXQNr+AbwLAmgVuOoxxRP6VWBksU82sPS9MF0UV6OvMLQnA63+
-LiTwtoOiFTI0j+NGPA8VmnkkK6gJXMyy1+S0hh9Bt3hhOEXuAiPQ2Z55GHdI2MkYYHfhCPwfBHvv
-mKArzisx+uEq7pPpSjf5aCI+1eOnRzpmtpLG1H2lNsh+QkdK292Eo+XRTLaDuUl1lr/3hcfPjGu/
-HA8kt9ufjOVhlAXTVH2kxLXTAFBy3lipZf600FNcq0lZHyzkGjqPRrkfwzKDiyWpDSjpcnUKku5Z
-MP9AHpX1KH4m03KGQw6qeNo0OimwI5jGJ4083b+a2TckVUdUiKrmPL5Jk8ahpyiG8ofImeDQugdZ
-xoXv5IAPxry/MIqR36WNVOdn5Drh+2TX0R1iZHXr5nH3FnfSR0nKr++Lkri9GItGmJuxnn0+t5rN
-3zrPGACsKMkXnLSj8DqYzpSP9OJxfy1Cg0FFJ2DD4YxR8hGIo29ugO4kt8IqiI6vzUTigQaKO+4G
-NQ0oaJtEevsgzMdnqYq4WRGi+2whUXlyWmlj0YAL7G1SmqF0g8kZepoDVTVd4W7FFsypDU6X3dXo
-8YQRBaJ2u5YgDYNo3s7EgJepxWVcki90HcvZew+6AiYd3bfxk54Ut3s4OM5NiPL1uW/K/FFbMNM2
-ymekjYtMMntedH0rxSMVy6Hrj/dZHskfuFvdC4PT5YgAAw1yxJR2OLLF7rIdGDu/W2c9oZYb+A7R
-MYXA4+xm1+7uVIAFfTMg57tIwZF3x5Zl9Xs14AEb8fnLHUHtPGCSYO5PXtQG90jwp3HF71yQ18wk
-OFzjum62vhi97NAIp0wZWNXON8KvIdnijikvnLmdnx3dsxXl4QPNKrQmg8aYj2tPy22C+Rri+bV2
-AtSjCLfIzlkc2eweJJv/rBt6bgors7aF43fYQyAQ16s6ZaqyIt493SL96a/7KZhe+8C2H2VmRw8S
-VxWIo7FRJm0zALaNlU3mz5BD5WjAzKzFosdzcRy67JWSGtFKOnW3UZdiYMCqXD1yIGiMKp40b9jD
-2uOasDAnXclkcKYtWL5CrlFlm0c5aN5/MMPHWxuF9rwVx4DzFTVG+GTWjnpxkiB/x64wXfQtDee6
-1ukTT8vgxddD9W1COLht+7r4TOUMamCcRkYg6HVA6tg0oEwjZ1SEvar5j5OXp7vBn1N+664XMtDD
-lDBuhROSTh9x3ETrzMK2lQfuIFap1YOc6wavuRWV9q8nWEsX1KxlfRF67aaeDPk+TEpeeW7afuRJ
-5rwA82ObqGjtP0EzedlqxBlI2clqiPm9THNmqKA4PsKIzfu2j4PocpbNyPOTX+hV2GdmsjKjsb/s
-2GL+aAEd4IlToyWPFqx9frNjlbwZMk7e/MR19JZCq8UfNWM9H0ZU3WxPWuort4vCmj9OqmYfFobG
-USaAUbqpHHFUxBZFhoorv9/Cq5vK9QBkumLj3vbBJs3K4avPk3cVdTI5OOks7mI2Pw3Aw6qLsfGQ
-3A0NFf4lfCsyjTlHBujWtdsF5ckULMs4ZUXrHbpmYKFCMPmid2XGlmwNR4JoroFj3IbQK6Z1FwHh
-Wg8FtyvT+mbKLwyzsN48Pwq5rMqO76fsB/PoVO0BP7BxkRaajrn1UYtfehOdwc4uNCUdLlG40liA
-lh1Oc168iADehd8pSr2sWvxSpV+xuS3dga8H9oTe17da/hyJBIM3Ixqq4YBzhEqz1WwbkU7YPNPT
-ToMbaLuZasZxWuBwbYt+kq+gZhwmiR2xTJcf7KnB4iEQL+vhDmmzf9B+hJJ5zk1x4LCNw23LD5kP
-tmZ9sGIqvUxuQHbOW4OJDX5dvRgXzAn2BiZmC3ortpYMQ7MHNxYv0oJ9aPWg7yJ2O4+s+9F6znE2
-GytHphq0uBN8QkY1YSZPY4710Snxv0qWkU/CYGWyAuCG8Q5wwfiusj79UQ6LXSzH11juEviKp8Ay
-nOTotV1w2bbLRlvK9tUDdwCx0Rjil6qawnAL/TxiBJIyCFqP7hzQHBSBNR8TFtAo2bjw2Z7kOAYd
-whQEhBGZxLvSbRceuFDxVdf2ksfhwD+vW594ACreqMN2acj8B04dA/JOkFOLt1lNm1Aq5NS/kpZ+
-t/Xf/mLx/zKq/8kK+Id//ff/CbOL/zZc/f+ghfh7uvoyuuBb/qALEIbuBUwpZYBa1ce//+foQjK6
-AA/geEt+qykZR/w5u3B+c5giSLBTwoUkYPmMNRR+6/jf/sUQv1FKn9NeHZdnA//7Z2YXf59c0D8z
-B2GwwvDCsoUP7IrJxl+CHRZodWpFOEy7qO9AvyOly3B3EfWASKMdsMKXpZg2M8h1mi9DW8MvVMV/
-GbgjeCv1r2vr+P1v/7K8AschcYq/3bIdQTrm319BbXgc2Z0zkm6FsAfqcKPDw5S1xrvtF+FrLJUV
-b3jUiVeJgTdl1K0iRvwQTpnk2xobykQDvm97g5VoSk2klr1w+PmXidTv1/p/nQt0fpVkGEB58DCD
-oT/6h1dpJiVdL4QhKh+zvO9Quz+ixkr3//3fwgrob78Nlz/gp8OvQwksF6zE8tv6y+cRJZHKhojp
-aKTaMF95Z2JzpTz3KwV4Rck1AktxzmBnP/TrByfQ4023cJ99X2UgA8446BTp/7Q1lAEm2mhB+9zU
-hGDpNcNYUNIR/Yt/CRpIi9swmGLnKvGj0XpwKrQ625AJL2fnFKT9MRKVDZ+6GuPm5MJdoIRq09na
-id6tXpjWQbYmDQE6mJPFNqPYltY44rzC33uWpVdm3bp3WsRMOfzUaMqLMeiMYdcm2YyRWGFp2/kN
-y++dOWZ5sAF0y2GlW4vj37FL/is6kUKDenZmf40oLc9uhzO3W/mlR25YN48mvYZAy6FOyie+5rks
-c+re3CWpcD1ZcXhwHSJlXmLlIFNFFdONGxc8TXJYsgrK1xol3HyMMhhQaKkcHqiJsgLUFUD9qZPy
-Oq72BvrRds22M0yOyumxsmvRZVdcsICn/NofACJQdNFxoEltAYIp67VII9jIBqE4zD/AB7AXoz41
-NxJd2WswF3G3TfMAB2Wip8m6imTFih1R+WytW292rxuAyy/JmOHPAVzbIQyeIx/t99Qpbs20wx0c
-Sk0pMrYBpv+i5VGws1ptts9lwATlyJLFShnFszNcN05q1s8RzJLuume4sTyRW+fR7drcYRyQGMEB
-a6PpHtFZ+PKow2IUNPduPb0Xc9kVj1z9td6Uvu8/1a1tVUcVomtcEyVCt00ESPMtO7s+QbRlhh4T
-StHufX8A6Yi5K2iuEkNqe8WOYzEK4orFmV+CGcIq5jjJbeEpt8WZPyYAllIBZiDzSrImKlEZOEwH
-BBhcPSkAVofiZ0v7YLKjzABSPo+RcIrnUBvFN6VnirETNjNIy0E5T26iJsRPGM7Y2+pssi4Ri2E2
-ZH7p34eiil9TS7pfZtGY7XGMayx3bqnHg2nPsXGtG9ft4XzHzauPbVfTaAzoyXDV3OdTlX4z6O2K
-Q42P5K7W2r0jjS/q1ok/tAi9RIu+QDB1Yj7gjQ+wDSduCZWFNTy0LDD3mlVogwg/dKjpq6CVhxnu
-MB+prwoU6F77kwILzWU7IW5cKNIg9Gr27MjaHXxkCsAq7Gfk6tcCtWe2EnKUHzjfDe7xlAcSWhGr
-cbb0sPqQph11covpe+f6k3B2DmOxfdcxBVzVhIOZ63qc8B6y3gvmNc1atWktx+r3TKyGN9hL4JBp
-WWa1ltnAB5hMOaHpgzHjcp1a+KVHUNXehPTdB52g6oWpVSejZrA9GWo8wX5C8JimpXfICpZua11o
-X6AzkkG4EstfhavKYp1Tgn511q3A2rCxR4tLEK1BjKtotpadHAhoYmLUE8Ds6ElGY/gzJlQTSFlX
-gPlPEKAyNersJ6+SrzlO4M/MbPEpJFRmSxUF7SU6072rSMHNQx3j6oNXj8k1z93U25BmNOt9aOsz
-I1yxQdWiAULWdhIwgl6Q4glYXibwaZ8+oliFOZ535Lfgc1xY5P2ZS64iCaO8g6ga7bIzuzyOFo45
-/jrvWZzp5l5StBfIf+nagzP/nAcYLHR55qLLKam+2lR131EvaEWNeMxO9gJTN4aZjuVMWB/tBbY+
-aP2FYeUuBGWIEuIXkT3HXtUGRgGExkPRE9TNS2WaJLQvEPeAR86blX/VtE73w4J591p8cJqArH0v
-4L/jze++p7ZlxNCcAfGlWRnP1kKNz4YuBiBfLDD5BGL9m14I80wUnAJcDtz5/oygz8Iegqy9kOnL
-Kc7zbZxG00dcqEv3zK9H5yoe0L3Hn13A3CuD9PeUnHn3ftJjI/Nnq3qtE4uBHpPj5rrj5oTFdcbl
-T7/Q+WeMPhaReFq7C13fTS1A+z6MEqD78JaxiXotlr06DjSD5YXRPyd0cZTfC7rfTuzyIfsF9F/Y
-/tEZ859rL38mwgRrbn8OAjCCJRSAdwqbILDrb/scGjAu+QHYcYkScM+xAuIcMZD7SuJaXZIHqnMI
-QXkOJCiWbILxHFPQGyQWZBBB5dryliAD+CkT0X9qCThAc0nYgb3kHiRFFLk4aQdu6vkcjVBHlqph
-SC6RCe0ctz/6wgyKlVwyFaAT1Bhul6SFMk3S296EJrCNzlEM+KuGF0aFyxHq98vQ0bWxSRRpHN2F
-5ziHwKsxe07glMpLFIUNK5POoxSs8jG9m+wZgMoE6g8I8BIV8b+Lz/9EJ6MTsP9SAC78s9+5Zr/z
-cZOP/j/+79/QZL++5Y/mwfzN9mgOAqpBhwrdpVr8HU3mnBG4ggUVObemEEtf8QeazIJaxio0oK5H
-jk0Q3V+aB/M3fpgpWYwuK0sA1v9M80Dg4t/LVaZhJitZVkeeTXBZsOxY/1quMoM2QLZwKEZ5nBAd
-4+CFnJlYVpva6szDr1owG6XzVAQUM6vQqSeCnDMPpZzBPvCpsx3FlIjcBSJT/cbIdwbA1RvPlbS0
-9BvRNxgxJpJFGC2D1k6Gzg5DlfXDKBGOHpJR2IjaO4pLNpBS3Qk/dKPNUDInBsBLltY+YQ2H0oG6
-9WeJ1+IHTJL5cfGOJNAEiokkN1/G97VlEppt+FPXQzIFF3YgaEGzqEz9rjn0KBAwsFo+BP7JM+H7
-pIm3NurKuS5Y1lLIUDVnK8+UhlpVVKtfCEGD787z6h6Ke0WdPCsjeKxL1c2P7KRbapw8svxDPxOG
-Q7xzVL7CwHOmFSZYNz/Fg2eh/MO2KLeFcNzpwrJyjseoq8lrMRlYAIjhfNwwvnd/GLOO3wfX78Lt
-KHzKTk26TLaGP5N0G6Yt7cvk1324tY2WHQfG4dpZx1Unn2wm+rf2VPX5QUu2BOB1akQPSlvjfdfp
-VmxKjvVihafbt9Zgn7IfKXBWJptQ89a+odgrhqbhARmIMmr8Crf+C+MVxjzKT8F7hk4cpZuS6zTn
-gU86yKoeB3mDoB24W6LD7jsvUgzzcMsygsCwjjzGiWPC2mVxC3MNrqZYtdLAaVA00r5JXSwW66QO
-LS4XN7NxOoxN9F1l4CRWXZFM4SYpB6B0tTW3r8puhvqSEY8ZH5C4A6BxDIexEZBYEEx5YMt7KqKa
-Z0Ljpv1aQjS5bnFSRNfQklO1p8Pq12lXe9EBeoB/x84n/zIDbX+DwYrY0Is4fA8GXDQbo0x6lhvs
-nJcFXt6vDREmDxIdNeT4FHE4OpXGumPiiwDcb90fI8iAcucjgQaJETUAvFy3xuklqCeHObtp7L7A
-iDTHT1hFoNyS3JR9zSTjIkLHT4aSWL2OOgV/gbbKEzsCQMTTNC0hxGGGrFIjYkS8Odf5pdVNLpdl
-BiBJadmre4obzzpwHTBn9vWyBwU7CFQvtviIVn0SINYtzAmXlFnIdtzGhR9jbZisqtsXBCHD1CpH
-6BolYVA3pW83/VVZyMlCNq5iHC+TpYkWipMcdTZWxsOQTKV35aO0qaSdnWgsBNfU4BsPQMBiYr+q
-DMB16EXqwx3i7maBpPVbFJbFXSUWf3Tkm/aN43SjPkRJh0w4SyydHQabC3VjtPPCXcnrZUIRjRhE
-Z7+p9C4vQlA6TVnqTYRlXO2zkZiUlWGPYMKczn/TSAI3udL6DQ18O18RWGUO635us7sROlx1aLhR
-OB8KWeOAM0z0dWna4tEqHPO5ZIUNt6aohuGijdoBjnTl2B+uIRjQ+36gj0HpYjtJWOc+0mnX7rpC
-43U7sVMFkN3nfCQm7B5g4C7CJBTDiX0pmZaX7BdBZK3cJmheLEPAO6Ch7tNdCdpMrL1GorlEucsa
-VeKA/InBHv5cDVU1W8Vj5DiIVlX4Iv0YIR/8CM451B1gC/rWU/0W594M7qMR0rzLfDQMxxp7RHVw
-0BBcIUBvWBFFE19euX7/bGSU8Nupy6IrB/uE3FZtWVw5SZ6n27Kci6euTmgMWgYL496l5cQ7Ikme
-mQbw4QYQSYvuMJ9f03yw3/M2L6ZNmIT5Vww1VW89NMrNqq3j6TJuMXfuHNWIt0q4QKisIFPPDntD
-bt2h7sx1bNkQ0lMEMm9THoUXCknsI3CD9CEl69tfjdriqsLIQiZZafTFBal7cb+eUQ4ZK1l6412E
-zNdc96nRX9mDX9eviZHHV5WvI+BGJu6/vXJSqqABB/a7m/JA2M5Bi2iRirOnv4ltdejgWHmg+PT4
-IAdumnXWkgi2ihMPM6qF2fOecVuTrQmyUe1Dr01nLy0+ZqBSLrcGIuVm2pLo3nxXHqo1icoMpmYV
-V7eRD59ni7bE7jaWzLA9LOMtwiJgtlyxmwsBfPczUSO88u61G+gguC88632ilfdWFKbi0fTD/NZz
-kfqzZGOMtBJz692YYjwZCDF4IzOoCCKNCyiVciiWDtzDLElva4rX3i38Fy0KAOsEJrBNQBcO9knD
-v7+NMAO1W6j1/WkoeiYdFZoc0vMicEfruZ9gPGHfG/0tkVGsiIeZDmM1EDosAcdV8o3rP8hPqQ7V
-HbE5k8k+FFbEZkjCiUNqnDADMZgp17KxynYvGpXG68FRNveyokdZd7FgZc0yotoQHFm0hMiN3ECI
-3eWPIGdEuK3d0cnXZumhmGeshJce1f9bhhg9o/ek8sfNisN2Z/V5hVCUWPsrxB84kBsGtC82VjTQ
-T67kk5qmeMHx+GGDQ7Imdpwbl4QrkAOAwT2A4gL3s2YvVXO9i4PXaiE2UVhggGyZNXR4zQcMg4Tj
-zY+VnnhwBrC2feDhRv3Mx+iSycdY5CU12s7ftG2GjXvMTPcH22HCM7wYVEtavXP0NzwanKT/aoNy
-8DhUcvWIjagv1o1l13Dh50CbmG4Rf2+y3mouEPGnSO8H6UQ7sG8MfpIgDB4FgkqW0djLWFY6nmmu
-EbTP10HtVB0tttG88wwnH9ORwr9LIEo122xeCqE+KgJjg5+GpW2Jevhl1g5nDWOzqd965SBRMNUs
-pFlWjhjBkcdAyuAwh9tmj7nxVk1Mv9bVksKKYgZ2GHyjSIFeVjWq7yAnY4y1bwGTlsh1rMxSwT5d
-pW3cA6pyl7kNSQPprRlE7Y7NfF5vhhHh7Y77RektrzxFtyEHDpmhTlD2O3EovlRIZCeP2Iw9EPBt
-6gLb67qXODbU6xCj/s1Lt8NkJXvzUaGqH9cukOl607hNfz1a7PJ4OxnJ2Hixuwty5plEoTkyj4bf
-d3eFwEG0GVNl3kexriqEdcT/bVrRZChTHcURaSENu6sz0zZXAneVf+G2ddCtFZuzmlV2TT3lW1n1
-yeadwnQiiAYcVOmSghJb1cx+OhXDHXt4baxr6tpo44W4hRipEQUzNUaPgczE0rDBjC12FujuYC0s
-HWNQdGcL3AwqLZrcoZbrOUqgGJlu6V4zpqHJGznwebzUKWozzMfkzmCgwMwh8vfZ4LClspogh5MT
-AMpI53hK64ITaeVnkfk5GZ4AFjS10QM+NVpQxBD1vWJCFW0z1BSEbjG8k2vbyec9aIBU7AidYloV
-DH7kXfhq0pdmngPDVU1l7THV2mB/YKjgwrUkA7KuWhRSs71cLgnz2y+bI+WjGIbB2dvC7A0ifhbL
-AFOcksskLLJvdEmSjHbiND2ycfvmCnpX4R3Yu6XUjQPGfQRnDGRCsE3e1vJczvF4xnK+xkDr7Mc+
-yUOsZtJjlyYUekWjZ1++TmPZHFERpiS8gYw+Gu2g2+1sjhxRsdX4P4ak680djh9ZsKe0zDfTy5AW
-IIlDFGL6Xfwe+13U7STlbr4TqNiYDUJpsPbAZ6BJuAlrX17xzN7Dg2z3Gatc/FSuRY3vwj1q6SXM
-KNwGNQg40g9CHOh+SLroavSGxoLDGtQ/TNyCGvIkY9pNNjQF5Ei/7xv6nrL/9DKfRqg3zExBjRbF
-p2xtGzs2scFPVbksH0dPe0i4zJbrL3YKm1fSM1w8CS69Fn4d4C9iI5vy5FPz4arP2di6OfaI5RAZ
-uRJwUHFzGXHLj+XIafdW1Hnuqqr8BcdA7i5PxKRx7Tu2BRMf5tAZOxn25d5RlomVPOnS3f9OFf5x
-qoB8xAqWvdC//iFZ/k9zhfuq/P6P/1cmf5NU//l9f4iqg9881lSe5yPQs/hH9Na/Dxdc9zdmBMwV
-TBZfkrUc/+mP4YL3WwBmjj0YW03XNs9byz9XkzYodcow9lcsFOl2xT8zXRCW+Q/jBSTaDCtcl6WY
-xf9ReP99vOAjpyhn28o2jNN++HVaHd2k7o86sRcX3AAGoyMQGPB+cOEQ9bYtBqK2oRX0MC0D8VY2
-dfdmqr6sNqiiMSk7MYnQZSxPM+xEMGiDPe1q4wgCoUAF1GdXAyW5uQoMujaIpNYhcBNOxV7b9nNi
-UfqzaQs+eJ4MW8K07De0rPXOi3R1TNpm2gM8Cl9T3gk2h8iUi4UM55a0FJMGWXLQmjihhrH031u3
-wQ6begC+7NzfMy4siQoHUfJR9ELfhk2p3BX01vSdmbreGRTDL4lraVw1PhUJ7x2RERkvM7CJaMC+
-FAq0zZnwrvtSAgUM/OyzxiVNOqepX+3G15iicZuAhDXr7USjDJhiPhFYE6FSy6J7kabHkezMNXSY
-4hPM9iAPsNHVJ31w0SOrKL3XARmYXiWmumIDpPZDVLII6/mtxHKxv3QEqOxZF9vy04R//T27kXsd
-NLQR2zGggoKcrNRL3xfVW2kw/8kBf+/EyJMM7a/auVAuKQZNedeYvt57XZggbqo74tv9DBsWmwzS
-idsrtxrCXWwx+VpRQcU/M3Y234QKGc88mkGVE5S2YoKwaJrD9IbHI+Zdz1CHwgV7UVTsnrrYjU9Q
-a25wPT/gszyNDNptnHZtkqt9WcJlQ1TrrKDlNNvGS/sXchzI00AU1PBwCRpgnyX9J2onVKyy59da
-j3I+lbq8kxn/0dBAO1JsbJGXkTbJ1YVgKCt3rYNoP1wLQ334uoZwUZxCpcSd3YivlgHRPnfSe1JE
-mn3QeWKvwRdvJ0WWN+zcdMsolsxs18v5AV62KZc47QGXdA8ztSn2FYwJRgt5JPYeFpidiscWkwsK
-N16H7wv4EDG5mgkQlgtMg9YiVT8GspFXpVETRJgEwQu/jOwVS31xR8qncYzZym4BTgx8WEiGlyUD
-PTw2c58rYMDcE1dF8WrqqIOWg/ppainbbSTot6kzhMc6isYnq2i8vWSlcB3lefBsInjRKzakw7Vb
-JdaJeE/jeS6n7joQKcOVdHp3iw48bxDjrI96Zb823Eq7enKsGwISgS+IOm7ISvTVMWB3++aEwxa8
-3SbuyNRa09YGrEdd706a1nQBViakliqaY10O443lGPWrVTaPk2tZt53fD1ZNhoyjjMcWo/3k7Mwu
-Si/Awts43JfdNyNPUsfxDJyS8cnowhcDlt1bNQI6AvCvdwCvwY5JXGSOu3CsEngt7Nu4ZRf00xnB
-ZlYtiKNfLKSIL/TRsH2Y4dnw1UtAvhQXu4ys4juFQ/rSJ28UThZfqK1q2ZsHkJ8ypG2MQdLafsvO
-uK2F+HSetilivXZY5SGFtcDIzAgcVcaWDZKS0D8It4bNtVjrqgzkhGYGg6x4+WaaRJIAGEOwdZSR
-V1+nXhycPJ1gdivGHDyw46bhJW2a0SJ6gMq30jntBjom42dWYBJLcLQ8wZfsDh0KDWUxjwHLe5jh
-3p3G1B4QTHnGHSKz/pApXTAPgVbMtJTJmwa+5JWI9te4OKHHmOAFoCXlxQM7XDhHYUbX7WbF8ICF
-PNk1ZhignZuy5nIe4mSfjiZaPU95WyTD3QY5JEuvcohvvNT5TEsSnTJUcXt/jotvA/nue56gm92o
-qKWpxke8EbxhgKlJrW9qF7Uol4SLVLZJqOFrNX+gFrziRnIOSTylt2IQ3s4IRb77xd5DY3efFeDf
-6LZh451/9xVZCVkhF60bCyXC2Vp+x9B2RtLLgvSIWTsj/K23om+/ddA4gBPjyLTmyQJJBIgGxDsK
-ouvIcnBYhACSoLNiXzxms+ZngkYtN07A5xv1BYgtEFysgpmoPzrMhNh3E3ZL6w64TmvbYkuouYRm
-Yz6oVmGG05PzhEpjccaWOBg9UKpPBGvUp5GxyAEFG17EWNakt/ITbVk0Jxyu8T2BBQj45hqXnOeh
-pzPbCRWfo6HcYSlaHB6aqylqmvgFYyKUE7Poi/2vOyLTNF6OmkpspDZvyZwXwJkNis9MIZ9FXs/b
-//USKUUgqFV9+5pVGCpT9oLfGGJ4TXh62GYtHDQzR8iA+sXGt6cq03nqvc6oNwjf/Q8wCuUJ1aLz
-ZCbcqVz4FgJDXRSEzZ7vBF2r8VM38MuqCMpEZsXMoc9AR9OEmRBxTD36xFKDnkqGcE8IHxaWNuYP
-80V9mWlwKGCilu8iUAA4RgPinps+RV5XeYNxgY+T98lK+hHmC99RE6vF2xWqaDvkfRx5D2WRVGu3
-r8y3gcxlEAXCgMQ0SpswL6KUtxauAcbBBV+vmwKWVmsyOFsNJQvXXUvA2AZvHEAshTzoorCYea4d
-xPyXIsCC7pG9gAMe3wUP5UTvLAJmb91YIByMi9jYju2INSjl93RhQ6ynUeuN+YoQlPlBAkliu0if
-sXht1KF24lisvIiwLqL2zPeZbuU0IcUm9mPqT+Zsw7myvQGxaph5d1DJWpKHCbh7ldjAFyeaUzGF
-Myv96sLUfPZiOul2SgyTKa82mmM+e96xtY3kpgfw6W7rxu7eFD0MiC0gdSfLs2cC5HRaIladvf4+
-0Gx694U2UFwxxtxEfNlGdAzwVkZlBz88e9KfopuCU7+QvJhpvo1xO98mw4BzWIVpsc75aF6aGde3
-TFPvXseWmQLZjON9W6XRMeSuo6RKTPuiK4R/VRfEN27r1BJy69t9uPJ8PzzSqdbGAcleetk7VkvU
-bWMB7eoce5khtXKPyTl/HqZArC0Z91dC1f4piqNwj4Ct7jC09QSGVzksLAK+qi2dGbqNvCfzIuU5
-KdI6+JzTSOEUKtrghDOapUeX9cDiqgG98Y5xtjoJ3eobbvrxIeyt+nkgII44VmukiB0xlKURx88G
-UwWs/pa8EGsqjVNPUCT6Ap7T17OcqfpmZz4hnPJvueamq2nEaiyqwGdYzfgJY5hllgUwd7M6gVYy
-n3s4cHrF24MrwspjiU3hqer07A2iYYj2KSAnhjdFTgi1MwXNt+uM0NWHjCTm3q4VzwyRXolyiedA
-ZkWlazpUztsKz+AT/xoR85jbr7Sxrdog7PW+oXAhAUcd578gC3MfuTzdq8armGWRCrZH9+yRNU7s
-izbF9NCT+L3Emg/10db/n73z2K0bW7Pwqxh3TmNzMw/6An2ycnTZ1oSQLBUzN3N6m0aP71PUi/VH
-yaqSZFsVVEDfBloz2/JhOOQO/7/Wt8LiI0kd7k8amrPbeXfhznh+rHoi1ZlKFPWCpTX54Q3uYLav
-NIIAtptVWlwWBsKMfVpT2lHrRtks9a3rG3/Ik8Mx1Z1lV2p8a3jkbjqDb3JCM3OUwpFwN5AjSuOm
-M31tv2E0WxpTJfd0w3Q202B7Gxcs0BG1XOfO0ecwewLXMcPkfAd537GbbpNhaQrXO/ct09qBJPJO
-enoVjJlmvG+YLmtMVzAfZD3+e1lkGW7A3hGnpR0Q14E9sdoFLdVds7fTYwcsrkQoj+U6OrTS4Lrj
-sw55uOydl/gNO/LG2zqxQqk3JTD4KGo0y4CpfhZGBFvYztFSZ7V4oGBE4hvXtVOf1cByKlzChHSM
-l0Jv+jNdymw3it7dywhRib32E7e+Yg5V6VFmO1SZcQwkK0Z5bd26qbMfNbm+owR2I7UsOAM6gHJN
-77I9ZCTEp4WDc9bDl8GDKUx42YYsDv2QWkrVq34dOiwIUysn3C3zh4vJHxHCpf5wYDtu9qHWTbnS
-S9GeAyAoadcwXrMkphKqPH/CMUKnw2/c7pAWKhBpFdz0s45QRNJFdAqHiYhMIz2OQrNihStR9/k+
-nc+EbSNqpCoQK1bSA1JDNhGNHH1mKEmGEmTkXTpp+VqIeNiVsq9PLLxIq8nJp9uyquRO94J+30Kl
-tXHtVmOFhG00QlXy87yxCymMD4oXpOg/lv2E38Ku9+wC224mQSwuCmMMrhF7cTsHxqzKF96JhQXB
-AOedVXspRcIDEUbNjgGhgcnuw3TrJi8qthJn7HigPNO7SiFroh+UVPC7Ps+KbVNr4U2czPZ2Ij9b
-NhGzkN8oYO+SMg39ic5Odzc1E+EYhufgfPHBI81PojnsM5YYOwrv5rknKVDnuotQ1DEKsJdp4F1q
-rgAxVHmDOsxd3D4rp/HcPYhaAN1zYCo/1Y1j3lVFO4P+u6HdFtJQ60F47n4q6ZItvbgzh03l6hLE
-gCzEXeuFsl0yOo9q0zDaGjAJ3OGK2mpyrZy+Y5DLuEHVyHy2KDt45rpSw1FXWnIf34b2oVMUBVr6
-ZucmjQ6WhZiVIpLTYv+4a/zyGCdtsJY077YiAaC2jqRfk/6DDY9kXCDOVyMe6M+BGrMLKvDxPsYt
-/8LT6ZwuaF0YP4WoyhI+T1irsQKGuKRYSMM6IHtmk3lle6jJyF0P9GIrvJmcwcLGmHpap23jspgc
-1ZWfWGR20lkIqGIE8RnsTRIcY92FOzhigDvs3cm9JP7Av8IhiE8atslK6k5x4rHf2+VlelGnln6Q
-h0iSIq+n8We5sAoKIgxpgqfloU+zge65NwTo7KymvOyBL6wiEiDJd6c+uQlbUsZp4/vjrkoFwquE
-YunJYPTDWawJV18Q+BVcqNBPLrFqd7cD43IGin+IBfpB8OpMHhoxIlOR5J8YSDiRidmENgyaj40K
-cDwi9FRZx2Y0GW5IEwfF7rQUDwbgoHuEo+zzthbhWvOUFyxDWw7VqmwLccsiu9qZJWjOghU8OydL
-RigLgqE5C2pfsG7RffkTDaLwqOscbTXQ/d3XPYi4xCvuidaiRZQWA2l3VmlueMh0KH8SSDfvVXU6
-UPraFlUTnOr4iaOlr+cmb6DV3kRw9PZYchug0igO0913+/IYzMuwsY2oumm1Bs9R7Lt3oQqJ0hkx
-MJ04ImXu7KpIP2bXVZE8ChwTallrRzlUUd0Zl4mZRwdDb3hbIiDTtSAwAJhHwaRZeAc0ISSNDLPJ
-z4NKlKTBmhY99oqNC+EK/ToJlXauTPqCohmIKqLLf0BRaVz0GUCsLLhk/DprNIw+GrA3C0vhvo0R
-fDXGo7uSkR3cZnX6YZTjKtQTcYQ7t1zhiqmOWrMyPveRL6HRY0tqG99ehKV13tfhnlZgK0NXst8x
-ontMPJoMzyYxbjINnj+ly37QjwIVnrBvpguaEFEH3Qf+3Z4f0eb2bfNjiH9qEvRakGzPBepN7PWf
-C985IFOCVgtv7BbcnrvMw3E8kjXyvcKkMBHXUKkBRVUymbaJJaI1Ua/jtKqQeFSBZ2NUdupjq1Hj
-GryduZeaTfSxcrPySi9I3O0xLR3Vtu/TtgnQO/tGZe4myNABrNdO/OzJsTjmqWWUMhGNd2EwfZD0
-lvdbLQegpIdOe4Y/Nr9w6bKsSwLOFslkJQtlTpdTpx84JC0t87xjG6YTiTalvXmAwfnTFLkZ/gNt
-QG3Qkt1QTAQYmnGcHA31xLo1d2iRZ6jJq4rNaGg4kl098uFmZm6TqN3tR13vrzzkF802xKF5rim9
-vaV+q46NsBi2Q9hXW4WLf5OgG1+yHTQOnNQfjwojqI+RH2AfNd3Ouag6uz1IQgdnlBicLw6JI1CO
-pQ6aHaqZrUCu0ZFLgfcW0cYzJ/tGI9Yc6bVKEc5Ii/6ciPer0GSdXQuP9W9ifzTMUK7Hrpv20jy0
-NyY+qxxlTpOd1VasH5uF1q51WRTrrPfc3TjazQfNH4xNSw7yl2wAV5SVo3cywF9Asp7Q6mR3dycG
-A9VGnfT1UVpgRG5A4e9brrIOeyIoqBdk2bBNyW79LPQ8Wo+JxXZ5HGfcLnoAeL9Y2KtYJJ9pQKUb
-+O/Baa5B4GdLkq71KMA0oHr/C0wL7ZSSp7FWeGHPAAAZp9DXyo3NKnWX+hqx5DZeNKx/yb4fmZ8V
-sOQtWgI0WEMf3sVB5YLhdMdzlGY8SIRhU1+NOuO6dLlzg1H4ewS4JNRPRHURjLZGvEvCCSkCRvR4
-LI7cgtZ5ODk0ZhjPDrVQg4Sem+24wjoEMt7Hv6mEV52kUit496ceZAJeYvgdQTypFQ3eYol3kvg7
-UpV1CnQjwYv6HA6SlAQ8sKIin1B2K3juZJKpbLqJabPuxSiXjvBjil08lNpBZIzhWtq5WNMQ6w/G
-Kej3KDPXBJCwes2AMO3gpk5XA2VahrEqP5/monNbjMO6FHF16aGW2Cg32LJFjw9gRczxOJ6xRZjR
-8uziXGH92aF61lruCDGbTuMsJSCWfacoKC7mqoF4OzgfxmoCgZeFASRMEwAtIUFzWhTJjx0zIays
-wcsXTWAEH4m4dC9sDQfdAnCm2ijHiU/g/YMiwJveAxrp5V6Ov7L6f6Vq821PyRSW86rR7fS6us6f
-O9084+v/epSruu+FtFxPGJZAdvoU04PXzdYdbFM0j9CxWvZTuap8b+l4nlzXFPS2hAE957GjJO33
-xPKiZHU9Q+cXHOfPdJQs40VDybQFpCB0sWhD8eJ57gu9KgK2UBelBk5aOWymLCIbxjW8Np5JWUnK
-3Jqt7Zn2oDB6kR8F66Fpka06jZtcm4ND55U3lpZ2WkZwNemgEoOE1b3ymbgFvRQ3m/lmBIQHe7YP
-i34Zu6rUF/ZYk2OXp/H4hR5RMyN1kdRXkszOpRbRt16iy0P8ORqZOLG0QD+gI9KSouGbM8cAulGz
-DnrSrPHl1oTJRZ5TnxmRlBUAB1xX7BnYxzHusN5kxSDMj56dIYEX0QxxzuxPk2iYwQiV9XexXdm3
-DZEvZ3OA9TXR62g0RhwunEQVcQ8gbcAdTSJ7ODP7ZqJIoQQL3sjV2lnT43BplbA6lokVe/uRwLtu
-VaEQR1VWdVa1VEZX10tbm6LrMSzoPiS+jzUmDBEHbluoGrTgs8m7xhpMo19mYT6zEwYWmq3VVayI
-Rzit+A7GXeCMLHndIO0J5POz+lOeZw3RS7Xn7KGYTS5wa9SXVJGiaoVYQaJRM9VhoRqAReh7TZBs
-Qe3cKPJeP6HnYYHrUXhkG1XwrVc2IhyQ5U5zALkuPwr6yPlpcvQJZUUm05M6ZUpZlkXeXzlmgfMt
-m1iSgPWIT/tSsf3xVHkedaMgZzHqICDpXpg1E4KUBHe1l6j+UiNy7pYjWohHjMj6kOYx+V6dP3Xu
-qm9TfdyUYYOSrmSzfoN9oryjsRBRIEf7CmJ9wh/mEO8eE9A6eCWUWwi+Y71kWG4vSaW2nIWqPKtf
-zYWBn2BJmPVeFHuw8ZBSfnZGQLe4OPzrCnZRBN4Gcd8mRXZ2biPdu6a/P3wO1cjWCZlKd4z0IzuO
-zTmnPHRLXwI4nnysLBBP4K75hMkuplz1rPx117lhWUzGkaLt46+SsUw1Hj7XPRQiS8go0KfphJ1N
-e0xOHlY4V9lXuvAoD9r0Cw8FScQHeFFZOEcpGqKphns94qLCV58VVFoko/6ZbiOWW7QaqNHFGDXW
-hW268BjMxOs28dTrAROjqjfmFHjnEVyYHUWjATdQ4W3Z1WWEn7rIcBmt8nopWL6Ciujx69MmSbpz
-jchwuCyuqK9q0Vf2Wk0D7T0N0zrHdNj/USqHkAWFU68IrAn6L27p1j7awBkfTPvWXKf60I+bCa6R
-taiQv0CbVZCrWb6qxN22VkaM4RB3k1yhw4HV7QftFcpUUolF0RsoOX3KKQuIA8jnXSNVIDsS0dxi
-sqtzUPIIUouWL5EMANyJG4vyFnv/dkq6LavzcGLXMRqHg6PyszgJiVSlB0qUNoRRBFZ4WK8NviI6
-lqjedJSmlEFzvUDAU/UI3pfY+cimNw1m2BWFQh6lKqbAC4imj61Vgm8Rl39eBvbS8+3ws6a8+opI
-FfajXZzftE1l2cCvIBWwBqRQgrBRA5dKR9tGIxXVzkVG/gMrYUNWBzFgJgKD3QyWl9601HtckpqX
-iO1phtaJYX2OIwUeHOquVs2y32bDbs4E8xBCT9vZTq9/iGIL9J+YmrGBSdnbP2VgSE5LU5Co1npu
-dQRAOY5WsEjTj4ibNYZyCOQ/gzrLWF+QKERB10C5pXBORuuy6ght6Aot/AKgpxIbnHRwLMdySCCq
-lVq9lAQxEHXpJJB1jWAE8DMEs5RJYJhaILc3z/3SxWNroZe7pYftXXQyRc/U1xWB6xlGMUYzCbGX
-oY5nQkhj0BHs9eYe1xpYLKkjBjxQkfGEmFlA/J1ka3wc9Lhl+29RzVoSPUCOiKMP8aeiJ6F9Ybaw
-vaiSgTlAMNrfiZyeh4qJbSdKSodaKtq+hHYv2CMGowW5IWAZPMGUE0QgoKKbmxkhzBY4riUMhaCa
-aZszUcvGNWjDeAjae7JYJtDOBWY43ASGRjvJVuUFYszQBm+vwwzvLJeMQuEwRi+g9OJm0tqm+Fg3
-Ifo/QoVm+X8C02ANVz09ZzjuzP1cT0W2DUaDZ5skiWNvYGG5CjzaVTFsDoN0FwfIt1n4UbmlPkIF
-uoNRehulpX3FypqkyLIFsLIIJGkvG+UNMtmnZat/8CxNmAfTRCDAjucDhinB04UkDknnwhRyzoaV
-Mb39vdqtaM3VUeJN7Fda80PAYpZ6Rw7WfQ+pYT/tkkan09Xw2K4oz5GSrgpebZh3eU3BunFm9Dn6
-LhiXeV9CpHCGck/0SUlNLK0TgiZNUJc7RcWwZ2GPrv2CaoV/7jM49QtDmFZ/AscNi2voqOzK7/Qx
-Xo2NwvieZmUQb0RU05+J/MbeYeqmqiJGj3KI1fgTpAy99h2SJ3T2HebUkgg5KiM+bwujJogXJHGM
-YQvMGeU2SDOrCb+Ku457h41NBDmVyIK6tKuVxPZbroMmGup1BSU038vNQbYbYeuTt6BrC92bnU/X
-LEZwZTqRdhbBepbR8Psh0O0vaL4LDda4ocK1QeXG5dE0xgvHoaq3Dwa5bbeRYI6qMqPyd1mSE7KK
-rEFcYgHUkbmWNO3Y5/VAyQLqCphEYL9RTqeaPTYivemrwb/0KcDRvQ08mkrj0AO0HXqH3EhvLA9U
-VBqfaQ3PIcHCMz/DHaaQXjW6ty1ZLOAPSOI821EP8s/xsxYdVRBZByto+4R66FOpE2uTlLx61ITT
-JYHmBAgAHmcAdNlqn9aAD1M4ZoZPzuGc5DvL3OUiKulhLA0kjx8E5bKbFHYvaQKpk9tLkMlutfSr
-QZ3CbqN9q/oEo4Qu6zDZKCOzL5jJWMw1tXROQ98iBbl0Ic4h6yV067hwhLoc4hTPhRvYAPhknZJi
-VZDPh9/FEOWwkpglUKcEZbO2M0K81inOjZM09LtPZt4G8N5VCMleG5xb30iQ0Nay4kFRpqVpNA+S
-BqIjMVKQTqaeHPMQA8YHRCqC4QCceoy+fVSfOxwOhEfEOdP9ODF703EWBICAnjGirRM5GC6MZAg/
-uj5ESfh/k80Ag2uIoGmSGnu2kDjUl5UsKehqHiU11olT5i6LzjdWsd0nF3YdNxR/25Seg5XrVb+K
-Bd4nipFsC9FkQepjqpYM92lbB1RTmSjsjZ6E2QedPHeDJx2c2v7QZKP+sNf7IYwCXdsTFgWoDaxX
-lqXPljZPIBB5QV8A+0S/1RzxQve1tdIRXG911X1VKf7wKPqMA/0NefF4GKRzbHhcyer9uawtbwin
-i2iGzzaOXeNRh+8C+iSKdO9ladfiuDTbbBOWDnigwR/QP+jeGcZa8/SJKvA7UAsAI6+ex3w7nsAm
-TLRhDUogqv7Ql1FEO9XWMebX0qGkyCCJ2sgg8yYD/mz1Ili/fvTv3Wzb0T0X96Lp0op7fnR7MpzR
-ypj3W8+L1g06OBritXqQhP7wZs9f2ct7/fQoL9CslYqAhjhttHIDOtlWaY9rEbTdRlG3Wb1+QXI+
-4xfHgpxho4t0DCSS1osrIvvFD1HWRSsKQDzc7cArz4hZJXI/UkZ51UJb0/cUGNUrijTDqm+gqDmp
-yvRt0uvmUUFCqbOQfkLhCJ7UTp+kdtdmunFVqIS1r8ZajAT02PEwZDAW/dmnnyW1YJBnMeI683b7
-+RcSdx2ujdgjqUciz7PciHZnhKvz9bv0zdc+HwWcr2053CfkU8+PQqOHHq2rxavClLxerpFtkBRa
-i9eP8s3XzlEkgBzJ6sUiUeDFox3QMBmRPcYrrSNbNQyFuYkoJu4GXwwHrx9qPuFn3zqHsngvDFc4
-gl3XXHN48haxehZCRFGyKusm+DLhPL3EL1BuSkhhQPOUth94dH5eP+j3rs9yDWOGxczHf3F9lM0s
-O4BXu8KGU+ICoEpby5ysGY1s5T9/KNuAxOHZ0jKR/T6/PovCMfUGHot+MpoTeCjZUnUuaasJkPHX
-D/Xts4GLmFF4Fh5T8zFfPBtiKqOxIAF6VfST2np1+nNl2PnvjDvffl88D7rJk84CfH5Gnl9PbZDJ
-Ys4cwsJ0xg8tezakL2Z46Gp5TZJeQZb8BDTnd76w713a06O+uDTfHpEthX60MvRu2uFXabaq7uTu
-9Rs4v6LPn0Ws2FCKqKMh6GYie35t1jDz9ag10LFqAaskLZsaB9NCZhbygJA3nzpO7xs7M2x81OO/
-SsxPHw7yY0ISk5rOoV2UCDCp2My/HD2GqS40bRiY1GwbxE4rk8OkYQv8F46Cvhzn+YzG0l9eYNyy
-zgKGtnJk120MxsWNPm8mXz/KtzM0F+MxEiI5x0JnzTb+p++0ckhrZNdKmJ5iJQtkVAUOayiMRMh5
-JbFrhsKuiU8Ij1JNEAUDNCJFGnlxQkMHh175O2c0P5Qvv1gu26B2yWSJd+L5CaG1NssSPcjKn0qT
-kIxyOsutKF3hR0X07LWd9ztP0nfeEimEp5uGJQX+jhdzGS0VU+ucPp5r9wAcG52ugqMpdyc8h/15
-XLiHKDDr7Hdezm/HNYchW9BClryfungxrjWahRWx7OJVQJVpY+XxRCcRTfuCeq20f+dhul9ovbir
-khEAsThDAvrpF4sDD5eS42HzWSmnBblEABRSy1q7KC3hrDokJgElN53oiFrJAQ7w5B3z5CvwNOxh
-tzD4/A21Kn97//T9nwTrfT3p2WKyZl3ajGftXTWe39Vt2jzAAIM7Nf/rKQC45lL9tV966mT59oO+
-MjMux+LuP/5xfcteACD1Nz0MyfvKaPDrkPXrSd2f8WufkV5zYe0tH65Jh2QAJp6Z4v/w8493KbvQ
-x3833fcWAwyPqMEkxQ/vIUd8cpe+Pf2Hm/X6Jf6R33ntEu7uv5sZqDfjB998G3TvPWFLNreBaXL+
-4cV4dhuM98ARbH7nf/k2fFEtAbM8j0BA82cglT94D158wJNHQQe+cv8zu5KeXrxlvGdk5MeZFyr8
-PBzq3+gZkJ4r+cbe+CoY7y0DpAsz4MNlvnwG7Pc00bBmMW7e/7AW+fd6FeRsbXvrbTDEe1YBrBS5
-vGdPgf5esvBm2c+eaf7593sKoIc+fCcPm+W/NiDK9/NujRFAfv2an98G03jPQomElYdX4k8NiH/g
-jfl1illCC7m9n1yiOxgB385BP/qFx3H323//Op7eD5q/MVTvf2+eah4O/TCwzn/+57OZ537If/KP
-j1PA0//+9fq+PfJ3z+nxL3fRXXVdfQnH+6sdv57lAzDqP79Ud09HObJrHv/43dnx1xHg1Q9NrwN1
-XT9+0Hw/2LHy5Px2ed9Mu3/sg7PrSeUvPtnU/4ZTXlyHz82tD0v0t57w5u6We5+++97ywtNnMcFb
-j7Cui1/+RaSHendxjY7s8QMf7rk547XeeoStin75r+dfprznB7/1g49mAUj4y38/O2ksu3/HSR9d
-c0cwW+DCfXfLvWnTxxsx3xlWW3Pi09sv4NeDPH7Yw6czjT/+xV9/i9DHPFfHSEu/50Dfr8ze9LnX
-v/zr5vrxDO9Pmc3R3/B+nt5V+XV20355/pWi0vkb7vZ5xFd5927/Or+LqucHeJiX3vp1zgfY8khy
-EB6ZY1U1z4bGefJn8/j3HuXlg/mwwHjrMeah4Prdkk0USRTPv+iHPc2bD8Bb++70GrLN4w25f4oe
-Volv/nAiFKLi2b1nUYT1/833/lJ94c6gxHj8qPmsDYOE+ce/+Ouv1Y+57W98X4/4Cut3W+aR6Pl5
-P+zL3nq3T3+IjHzjeZ//OITvzZ/8Ko3ijZ/+qi7xjZ+9vHs5qHuGPVdWf+/5+97K79cqwbfrwcfd
-//f+2/O17vwbX1JO65//AwAA//8=</cx:binary>
+                <cx:binary>7Hvbctw4tuWvOPw8VAEESAAdXf0AMlN3WZLvfmHIsgySIAGSIAmAf3NiPuX82OyUy9W2yu3qmph5
+mI5RhMNWMkFc9m3tteC/34e/3XcPd9Oz0HfG/e0+/Pq8nufhb7/84u7rh/7OHfXN/WSd/Twf3dv+
+F/v5c3P/8Mun6c43Rv2SIkx/ua/vpvkhPP/H3+Ft6sFe2Pu7ubHmZnmY4u2DW7rZ/eTZDx89u7eL
+mQ/DFbzp1+dyuttOL54/u/vUN6Zs3Dw19zP+9fnl8fNnD2Zu5vgqDg+/Pv/u+fNnvzx9+R8W8qyD
+tc7LJxibYHEkMM8pbAo9/uDnzzpr1NfnlBwJkuXwHfLlOfk6+dVdDy+4bMyde3b8MN017uuTHy3r
+cVF3nz5ND87Bjh7/fjr6u4182ecPjqTpnj9rnC2+HFZhD9uQt4/7/uV7Y/zj708+gJN48sk39np6
+bH/26N8118vrn53LXzRXSo4yQkQuOP+xufKjPOU850h8+eFfJ/9irpf//T/ts+u7pbNfP//3jfXt
+2CemOuzxP8FUxc9O5a+aih1lQnCILPjr8edJZPGjjGKeouzHkfXyzsx3z4q7+W6CGPvZwn4cW0/H
+PzUZ7PU/wGS3Zz87mb9qsvRIoENk4fTHJiNHWOSMiPRL8KEnyfC2sc8+PTw7uzMPzfS/EWFPxz8x
+2WGv/wkme/l/0GQEHSEislRAovu2bmX4KMW5IPDwi63Sr5N+SYSHoz6e7gyY65N99nKBovKva+qP
+A+wHr3hqMNjp/2MGO1TXbw/iu+X/ZXCBjsjjD4LT/8465OhLCLH8h9Y5QJ+fr+THJvk67rtVf0FS
+//dgw7+GFL8jrxKy+O4Rsn2DKn7+9CsceTL0O+N8525f7Xb66dfnKeMYAuJ3KHh4yW8j/+n+f8xU
+3wx9uHMzwEOKjkSO0pSJPCeIZ4I+f+YfvjyiR5wLkiLCSEYynOXPnxk7zTUMS9ERyyEsAabQnJIs
+y54/c3b58owckTzLCWckFRiqY/47ir62XVTW/H4wv/3+zCz9tW3M7H59DvMPX751WGyeIcEY4YBP
+GUIkZRnseri/uwWgDl/G/yMuw9qyMRsLoV22G+t1K3mVbwChfz+cH8wCy/1uloylOcMoxYTg9FC1
+v58ln5u0qju6FQmZyR5TXMseT01Zq7iVP5/q6YZgKpYCJBAMM85oyr6fquNpHtJVbUW1jPW5Fcbs
+O0s6+fNZDm/59tgOs9AUU7AQFDT4+X4WiqPumcOxmFUdX0whZWfT2rkCxbR/0Q59/5qnKQbU9xdP
+UbCcMkEB81Bwge8ntXEikxtoKGwyD7sVT5Nc6dzf4DnpTn8+VQpty9MNAvjCaY5gshQ/9Ythy6dN
+sCQWzKxGFI3u3Oss23Qvs7hwflGxlX3GenDvDO9JLXnm/GXs2eAla7RLpNra/rprY/Umm81spRWa
+ablN3Lpy7PP0Jroam93i2JBJMjUDlwPi4Uuj8qVP+YHjYQiiJ/sg0JrlmDNMBYE/358ZtUlrZsZC
+4T1aKrniLebvamLJ/HpSWt1ivjola5eNt1p7Sy9wT9rmOM/W0O5pm693kx62e+WE4uUYTXe5zVVo
+ynYg+fQnTnWIgu+dCsot+BQVPAffzZ7YN1l03yA8hKJVmz7LNUll4k3/3pEmS6UfVn4Wh7SSplnD
+7uf2/mOAEjA0olQcYpQTqDffpoFkHBMfsQ/FNPMP47b2r2e8oBfaLkvxl2dKUZrlOeWEo5w/2aRy
+WT83It0KE9pcyxqRqrSxnQe50fjw87n+mAsIZSlkuDylLMcIfb8rxVDo7bCBE4fY7eYpfEJ4VIAS
+fxaV+PCWJ2YTkKRTzPkB2eaHVXyTQpWOI2m3ZS2qpK5kWPks214R2anYnzXLZnesq7pdilp6KQjv
+HrI+4j/JeviPCQm6WuAZcsh+UDcOcO7bRcRt9cqO81rMfEi87DdUnWfJuOy3jel9X+Vt2Vcq3y3Y
+E9mkiTmjGtW99DSQD6TmeYEmZ09Gbvrz2qpklHM1ZRczNnz4Ezf/gVUOOTNjPOMQm/yQer45rz6r
+e2K7aimAQlpkiBTW1zNy8nOz/GgWhjBUXcIFzdnB47+ZRfk1NXVs1yLU7SwH2+IisxH9ybn/Mb1Q
+qN88wywlGSX4yV50JJrNgvii8YO57KjDZZNMo/SuG8t+CdX+57sij5H4vbdRCkmZ5RnGB2TxJH5Q
+EEzTMKFCj4PqCyK0HiXNR/eGRGObXYtdmsvUdhMrSJjHV/XSjaukGYH0pxfB35K6DsuuXfL6Y+7a
+WpR+GdH7LTGoknELwRcat8sbyATJ7RzE9DZdhhYGjG450WKhD3FZu1z22oh+X/Vb56SIWEwFo/nk
+JRQwZ8tKoO5aL6HJ5Gjc8D6xkddFXFf3CspjqAs0WPR2XDuvZcfX5mWCOn5rbM7HgtXzctpXntZy
+sVW8ZZ3gQzmNS/4qODTORdPVcZF11yap7JeZHvebokS6dZ2H47X3XheIV2KRDpv1fWqQ6GUbO3OO
+2gGqTaNZFstxTMG16wC9UUEyPrybZufemKZ3TUHbxcTS5TNtj7032yWJ3mk5EPja6FkfJU96T2Va
+BXW+ZG2XyLbe3PJWxIjGXc6S9n1u7IqLYczCG9GpLC1Nw+ltFxn+TAdSqVL0C3LlNIvtjeom3xfr
+1mWqjLmJ05kyFL3ESYOH3ZbUY1UMgCdSmS5+xdL4cVUSNT2/0atfNzhBtXyaNNlWGUSPWblsK74y
+dTspKephfj+yYZil5skynU/5mrj9RJbaXigVJwqpeEbtqcVDbpeC0r5rXttqRImsc0LaYpnNOMJg
+Io6TTUUkDcm2VrYVJrZAxOCz2Wxok3Fg4XQ2nc8lwlO8FNQjuq9mVqmiGbOIdllrEd2tE4n3NWMR
+FUk3RF+0/arb0mkfrVxDjXHhbW1uILzZdIWjWNpeEp0EUq55jPMd1To3121nOY2yocuUFVlHR38q
+zBjycz2PVXqRT2O4qJY18cXgoaLKfN22UVZ9rbpdkyVuLWPDuChYbnhbVFtjpsJtVfs6Q5ur5dZY
+Jspmma2DsGi7Voo2qz9C+cKkDGilKThcZYZ95cSw7Hy15G91lUOsreMw3U1rNX2cdeajnMYaQtLX
+nr1ZnNjwxTLF+qML2VCuru1e5sjgl3YbBwDEiNNPgJRtI6tptmiX4ppfcb8JONNu3SykM7VNUmEe
+mCTbgi6wECl8LBS6QvNgBsmcQnyfIDPAv6sJfBOHLRelohAYUoux26SJmbgeTEvm3bbVJD+GfoDv
+tnkC3Mx5c+Voa9/xbYif0r7twXOmGO/6kbZYcq2TpFjNJDq5cW7fdF2D347pqFVJctb0u7XJulCo
+tO/bMoRsOgvIN+jKREfO7IrWeEj6o5F11GNbLqrWN7QVUe8BlrU3zqZjZoo6jOPFwWJ2HxuFkquY
+dbo548z3TZEIMpud8jECHiV6zsAZRf9isPnGC8h0g5LGIAYO3KGgZJuh6i6JhLzuEakXOTCez0U6
+4hoBcJ2pKEBBsC8CxMQqARouOztYOAUFeK8rRMMGXdicJpl026iPKagX96GtRy9FoHqTC4T+9WR6
+byUTFXsx6rTZCtWxHp1wQ5kvFlWJcD02U/Mmb3k97wPLtvqsX9VwAt0bn2QfPF7Ktp7Ci5ZwSG/5
+PJNtH6DhC0UXAnvJp7Ydz2c16VzOKV2IbKd0rEqwEnU7sS35OR0XaA+wQeurfmEuFp57gLesH+tu
+TzvmdnHUJi99MvXXzisFTt0P7bTrG1+9gRTtQuHC0F0usxvuUjKDjsBturyMNA5IDjR2b/Aywikt
+Yu6VpDjrP9aw73u0TLY6JrWz9yNH2VgO0IPt2zpmlUQ87z7QGPphV9faz0Wn16mW0WgonGIhW3cp
+pi1TEoNmM+2dMxWTLfPqamGLWXZ4aNltQlp83+ClGvZ5XfVCxmlKBlgHYrUcR2yVVDrh1yq1CT/2
+ohevxnUSfYG2NWtLCsCTy4xmcytzoC8fkp5MnYTX51eWYfw+VsFDIeOzFn+CeP+IRHgKKEFgkkI5
+x/Tw/Bskkkbkui2dXZFvjTprbbKdVmEOfzLLH5sHnmYpPQARzDLo5b+fxUKSrFMwYMESUMMQcuK0
+S9P2BEiJZMf7zCs5BLeeVonbvkz9Gy/zW5f1hVS4t0OcGlX/ps79/us/Lr9Kfo8K0T8/P+h7//zt
+xfowzcv08OzybnDP9ov59Kj6PR1zmPn3QTDxbys5sDDf/fIHSuhfkD5fBMV/8fDfY4QEyYEeAbD1
+e2vwB06oAE30v//rWxrp90G/sUGEHQE1AfpSmgtEU5Ch/skG4SPgE4DNI2BCkUP39w0bdAQIM2fQ
+jjNI5gwB9v9KBrEjfuBWgBYgAHJB2kr/ChkErBN4yTfokgoseJZBFyM4UIskf9Ix0bCsIKO2FrIP
+FM6SLV0/Qnob3ae42qyRLerrY47V3BSqScNHG0P4SNNc361s0pOcsG9XmVmTvSNLs9zFdnGQoawb
+t4KvLH5SaF18SUO+duXYxPymTbYIoYtZpWUuLP08A9C5ibXQ3XmoqhZJ66NKSz3y6nVF7Oal1cnq
+JGC26VrzfAAkuKUkBZiyYls00SMr68amV7hquvdVk15Oec71CaJLpeTiD0jO56bictri+noFtJbt
+MI36emv9Gkq0VuRsay21Zdt0hsIrCWGlaY09m7DrYmEH33wIvu1HqHh9d5mg3A27tNsAEzSimsZi
+WdF8Pi+hI3LLZtUASkkXI/Pg0rWYQjXfopold+k4IgWkROunEo5uuFucc9dDGJZEsjUbu+PQbkqX
+flLqkmycRDk4MQsJMGM5x6Tqsj3S/fzKKz7Xx77yGsveGHq6Nk1cdg6jdpOO6SE/6/OIBtngpv28
+cYwBFWUZ4M9cb+hs6zQXx8pV7asZ8NpVvSZxlEPD+7u+Cp0pIjTOY1mxyr/3qgGUD71dpU+avG/f
+pdF3XJKZjdVeZZRVRY2r+n5cB70UOKm1uTEM2XnckYXV6zF1dMz3wBfV5K7thu7dUqXQPWAaOlXi
+ZlSdbAXpOiWhABFS5Azp98uypVdeZQw4r5Q2poAFJfZOM+hvz4GLqbKLKvNLvgKc832Agr5N+mR0
+uPKjRDa6074RySYRtdoVhvqh3fMcz26PB2ztsU0WlB1z1ri3es4ruwMWE+3y0CxqR/HAaNlhASQF
+MT2gzZT3gNBUGFZdkjE3Q9GNbRevWz4wL2mDIb2P1MxcAg2Yvid6iKZUWAxROm8ScrXydfJFYlTL
+pdMJJGc1jIOWq+iNKjirVr9zaZ2eDLMP9Ay33dxd51Xf+VcQXPZNtmIEvgBNk71a1dyRYgPIUrCl
+XoqReXSTuCSvSpFW+LiqqtjJes2WeIyBNcTQ5LCt2w+1jjWQbmumAUks/mZMKfnQsxU1pRhVKwpd
+8dC9AyKQ62PN1yXKKCbhZNaiRO9YuvEPE21HAFutGtpji5SqZZ109SWzqxneVS1eLpXqUlR0tI83
+EXECmEwksMo+WfrzOXSLA2ouxQDwjavhMJLYvtTMTq/GPBXnjQ3pe5USNsgKekdUEAo+dIKBrX6j
+eotHSdyI3+PGJuneiDFeQOKqR4ACEE470VTdPfhfF8umW8mHNiHx3ZTCfLuwMvM6sVm9ySzx7Wky
+sxiO3dBsrujN1r+2qdbtzq6iuyS2ybNdg/LkYoq+cjtF1uXN2ifGSR3GYdsB6Mig+8e5PWm5z/Xp
+DLwWuhE+3TCkz2xadslUQyOhRzY1knKwhoQ+uXqrgqJ0Z0c1a4lyaHolRX783AzDRCDKswNvE6sO
+g7/rpd3jBEMP0CTr+NYHPgoJTNB6yCsNufB2irzcsAfWFti8zMkQsNYlTdLkBVBxNi8AnpFX3OSJ
+kCDi+tPYdLSFGQdyN6ppXcust+t63mdOdYXuKXrj2nYaijxVCJW9X4YXQz9QoI0mTO1JZZS+OUgL
+awHRNm2X2nn/fo2al6rK3k+YKFy0oe+1TGrAFMeDMb7UfYXBk/ho/V5PiTKSdENjoOHZ8q5YiE8D
+JN7U65Oknn0jCZ2DP0kYIi/oQm0rAwTCTaNGICVGmroX/RSnu9rqEKAoWOWKbeXJy8AseJWB9uCM
+IXHREsC/lzpdw0ms5zY5ZzH1tphiWF5WAgrfhbVOfDadhjxNSNO8aqPTpkzqpHXSaNeZMwVupfYq
+jHm3y9aqCXLqBRPHUA8MNIydx7MUrFludW0TvV9phzXkGrPYEtJUE8rQO+aKOna0Aog2J8DfZHgj
+Mllcd6vduuEiWSq8yqpx6n4zNQJ2ZBksvFyjuAvQGaWnsRrr+2FOYl/6FMVNbsuSTgX0wqmWy9DP
+UGo15I1im7fZfyHv/j/W+w0GPkp4gh/0kH+N9L69yfNF7P1m2Ffljx7hHBOQ0CE7Abn+DdbL4BoE
+YoDkgJhMQZhAAAO/Kn9wn4xx6BMEAt0QBhNgHL+CvTQ7IhgEAg4CwW+K4VdM+x1Ih/t0v/3+rfIH
+ZfIJ2MuRyHiGGCcgk3Fw1O9bhpUSnS+NqEsDYg0vppz2YedDmj9o0Hhez57oD7SqnC+AtzHX2G26
+k4pgaBIZb/09b8NCz8WqoKJWiVaXhrn6gx5aR6BIi+qSK7i+czylg7NjUdN1fJlmbOEyVNG/awA3
+3NB68+tNS3AnzhbKWXetaJOii3EQ7QKZQlcHMIDIhyzP9AvA1HSAgr3q4c2YdrVmhRigbf7ouw6d
+Iz8v50kPZKXcjMrftmIJV2ufkT1KIOOUsNfKyjSJ8wIhQ4A64MEuH5oprVExp2J9j1oEyKKbupFL
+5cdwvaY+z6Wa5vaTxVU3nQmg64YrP8cxlAQy6IfWjN5IHdVEL3oxAtG4qbDOcuEsvsvX4GfZiRr6
+WTtX6yDR5rNRbh5rU6jacVO2c08e1DDFC27bAM07a6vskAuTUKxAWM87s1kBSc+1CZdpqMMAbHai
+hyJRlTtwD+ly0WiFLn3fQVs8jAEnsoLiCSgYmRihcmzjvQHm9uXs2ubzvCz+bG7y9q2mBPkCWL85
+KZRG9CoQNl1ykrsbl6kA7GuWpoBix8aVW9VsVFaP7fH22CoPh665Stv8SplDK80wdNX5Y4PtmyYH
+6MMmqF5xaKse6Cnoxz2JClDmPIrr6DrgaHrX8RrUCAGNfNMjI2QTtmTYbzzie3To+sFR7LIjNVNX
+0yMtMOi4TXv+SBcA/MLdJXg50Aj9I6UA1RDoBQVM+LDjzdB/0I8ExNyZbT890hKbEuYeP5IVArL0
+fXZgMNZHMmNI0nmV44HjaMbKIikOzEeK8WSL9cCH6BmYiuGRJOnzpnpTPVIn3ASgUcKBUQFyCMiV
+7MCz8EfKJTzSLxa4JFuMTQsbRH2gSKaIis+M+3DXiJw4mbQIAc5qVsj2a+2Khs5Zv2+JB/RARrB+
+dMBsgRqIh/4kSzYOlQ5ov0qqUWcgN1VuHguq0PTKpQs65yMQk4VijamA6wooldUMrFgB9HdH5ZLw
+zoI+S0Hrt7mipuBJ4DdRqLQrVFIlFz7HtZJTrfWrZknaRdopSfqdUpnjkoHahUqttnDrYSWvEmDU
+PodAB9C+Fp1d6JT4pjRTEzQ4vQfAHkeb3684aCBqlGcf+GTcIltDwiQhDw4vFbPtG5wYvco5oBlL
+MaGmKttlM28Naly973E3tyUC163LamwZhayQOLGrQowXahYGcBO0hq/XhAJX3ISuGcoRbXg9bnLt
+oUTCDQhdVH3LAGmjdoYI4XQLJdzE6EQxxHw7g6NFpaVeXSIQqV8smOpbQM88u6J2yUJpXUVu55zV
+XbnlKUQ0rrPBApYj7d74xr9ZNXS8kFNqaLnSpAJYN+PMfWBcc3bG4pLdKAilT7nvnCrrtgEinWXC
+wGiAyFimRuHPg13tXC50TnaGJrkr6BYzIAfHebxeAYVaOeMUdBFgnIbTZLI+k0gH7fZq7cIrYPTa
+vuC8Yu9Q4xE7d4MAen0iSrw3W26pBEo563YOeRCNAKytrxQkwg1I4RogoapiNUlac0AkqO3gK0qP
+3a3XDtWgaKls3Sec1Dcj9KFnvhrzfgdqSTC7gW4+Lbs+7y8qKzZ3WnWMYunbuQsSDUpctYkZYxF7
+jF8Bvb9OEuCUrncWz+Sl11oNYPLIPtWbAJ49tW28VSLvH0I+QBrD9ZQcz3O17Xgd5jPtkywvbG1T
+IGsd78QuZL3b0WawQRqVQWfmE2AZdtHk9KOHXpYVfZoAOwG6uYUeCwRUJtWCLLR22pkzkrAmfYGa
+Dvza1EsDEgkxgMTJNAFmVmuvWMnCJoBWEymsD3g8agu8zeo0t4eLCz6p1QNhi8rPlWttV1adw1rO
+TtXpTtm+mi9ACh3rnaYMv+8yvYXdGiIbinqYUnI8Ao7epLU0+bCFBhnpkfBbQRkoSxDi0b9s+nyt
+j4036NXYoIaXADmiOOlYh2zh11rNO9YM3bjzuO460CsWoGFMW5ux4Bltzl3WbkHaRBi1Uw5kwIKS
+Kn2PuE3Gk4xOdb4jZqTqFIG4RQqfV/4VVwacB4jTyUphQk7lStZUgRC0wvmzhoJQppY+fNz0BvhT
+8QXcBPULfU0jfH6s7BI+Kmfy/sQ1WdhO0DJDsqK8BS+zaq2GV7QCLL4jkBkXSVZo/DlRS17mYRQf
+PNPB7hcqtC95yip0bEk/wxWO1okLYiZFiwyKod6Bbjm4fQBKKxRbtQFjRLNmHAqoC7E5sV7XkK5Q
+BPgN2GUYCu5giTwz6pNahLd7TyP4g00iLJ9vOjbHOo1Qs9ziIgarTBAO2k+wdJsO8O+Kiy2XgZPM
+HPeiXlWBuyzEC7jfgrpyXRL3MlkB2m/zAsffzquPe5sSrQqn19Ac02TwDzpj5ko0/bjtiDPhNoVM
+SYtxbqv0WNSEu5OtNXQs4LoXGU/86Fv+Qm1mzXc+8sOr5mHZ9tDAw8nXY8eTExACpwMtAldVzhpQ
+BupT6ARtc1r5CuWgdnIoIEuXgMg7+gllxQqahztdoAGjBemgQOVe+X5XLRh/rgYfxiLvh5Ds2201
+6qRtGpyVmUriunNRIbsbTW7fujpgC/5vkgvkCEoKRzZg2IG7jxZkxQYYII239a2dpqo6hSYXfCnC
+3S0lxxXuoewhAYDyT8cmfOQdGsdj1TqkTn01RAWAxtD6ChE/hXOF9UrPUHJwYxDp+HbjhGs6EC1J
+Or3LbD4Vq0/GV77OEYg1zi/VsQbl/5Tox0VYCKVT26EGAkXAnTrwjmZIQX8LjJRxs5s4GUaU0nPS
+JPi1ESHVZ+CBebIfliUKmQ4VT3dNoPkHhrP2kwZRFPov3+vxuF0YMEsG/lsB2aukI+95COtUkq7t
+r0C0NIfqhfpjMyewBZOY7hYuXlViN1Uz7AZuBKJeVss8vK14k85yY+CLgL34lOwszEALitImL12F
+xpfQywMhsvnwse3RwaVphPw9wVUaVW4og40lIwUnnUAJ3U7auhsmcH4MjmwCAgdXYYPvJyEDT2IW
+gcNuix9f6o33U2HaHC5+bAbT13Cu/sHrjmw7WntzZn3PZlBOQvuucxvghyYb0VJ4uCkwS9Nz8rZt
+UAvCVN5BKqtcw7FsGqsymURPTzncwMGF6rctlTMo7qC3rgwA5eqm+ZZBAwVJdKkEIFRiP4mRq7hL
+5pnecjSNTGqzAEJMVQyfLdORlVVG+7GoxJi4IjLVPZA06TdQPusJ7dvRQ388rXMPnO08NrtuwWvZ
+datvdkAu9ge+2LnPhKWJlSbpurciD21TroJPlyMNbbZbtny7Vq3P32zbHGc5wo0+oL2Yx6/HGqXj
+CVgcuN5o6LyPPkumXZJMS1OCBJ+9r3jcqoKNGLSneYEilcPZLjsgBYFssiyZziHbD31R1U69Shr2
+v7g7r+bIjWVb/yLsgDcv9wFAW7LJoZkZDl8QGiN47/HrzwdK+4iN7t0d1Dm6EfdKIQ2HbQplMitr
+5cpVevMwlGRoVsrYZrnTkJ5S1k1TabrddVH2XTGF5Nbwu/qV9Rx8m+pO0JxIsETf8a0+1Nwy4rzG
+UAqqYRtZGAwueWBAsLJvTc1JpYInmSQig9Iz50BD05ppBnDV39IhzlMb0/R+dhOe1ukNarRGM1du
+/RJszJETM+k2xE4lQLbux9G6CUjhb3vBnw5VF7TZuovF5qehJLm16v1YVUHkZKgDYgSO73RRL2l4
+Zb99FUJZfeS4NspuapRTQKyVx+Ymzuc1Iciplq2UoSXHOrTKMK7rSi/VVRup0Y1RmrUHx6Xrf0SD
+JB3qBFBm3RiTwomkAhuHG8d+aVdiX+mr2BTr1yqdnaHaq+1j1Qe5uXl33D9zdpYWOT0YOCRvqPqC
+WwSFVrIW7CKhC2ItCKMAXKcUseEsH8nwd2Z8UJI4eg1ImXwNajX5qWieoriiKqmpE4itkjlllAoE
+Yk1qyIw8PsINq0r9fvkBzzyfIYMUQPAFpxaNBT9VIb9eabnlu70X+IdmEBo3s9TxSs5RmpOK79NF
+DAMs5DnxKM0kWHWmR71LbcLLSDzB7ALXGkYzvanCODJcReuK2hbLOBZBpfO0n0/b3fepGbTPwLlB
+QvBXZs+51vS/kVoHbrvc9wUna54b/IUC6ZrwWTSXVDgh4Ryce37o6tWP1GujyS2qYtw2auiHzpR+
+dKQlEHxwByqVdAZiCaLgZgxV8MgSaWXjb8XKG9lI4etc7tMiuwuBlRSyTF6OKQWtmRGjo4FOQr1L
+cwzKD0e/c0bM7T4qB2sl6IPAhgwGkWZFtlbkyf90uWlp/u6jSaZtk9QkCUsZgqhKEvR92xacHS+O
+UoU82JC9pKWnTNj4kNmYZQUpyg9j2VY40ZuO0oXd6BSFn0mrvtaFgPWnCsYmg+bjPxU93Bd4QNOP
+oon1n4LieZxaPY0DjtRP3tdabyPZvfz0syEuHx4TFVWQLkmHVnv88MGkJrInFLIzxiqn634y2RQ4
+52rtVH28KW0mGc9pfpU6p4UxFIkYVDGUfRx7F6y8MpvcQWk0F8ZNdWU5nJkSTSftq8yp37n+7bhX
+UayX0tD29KoW85sAFtJG8KbUkQXDf2y6lGxJ30bwqgbSAorWX1kSJxYGiV+f+Zu6qrMkjQXrURYs
+q2myQCZe9U04YY2Md67Y00VBAUDJxYfLk3jizea6AYgNFA+osB/fyK/v3EzhD7EXearHdhSr2zjJ
+ulUZBs2VQT3t1XEri6USW4ollLEC1U4QDY4zeg7vhuhWCqyHrlO0K25KPnGe9EqZ6akk2kF5pMUe
+omViSoZV991mVMI7KFPaQzHmRLxGJsjgZ3EhkWGXdC/2tkEsSRvcrZWSCAcyBKyd6q/slxwUOJQk
+4TYdsjBx27qV8+2o5kZkS00hN6RVLQ1TrRrpeRim+lkMde81tEAtrvTn3CSRrSBvBL/BpBz6eE0G
+hQCgwznbUcxc/xbE4UuZ1/HjR1eCqpjsaHPJJyUwy5WQ5GMSULyrOmOiJN8sMQdAHbLi5q2VDyU5
+7otf2VNT/frVwFVZElTe81P+z/+7pBZQf5lp/M+JjuMSvTuqk36957f8+fl/s1uUf5kkPOaqG4oY
+5rzCf7NbFGp1gfopCv3zFTzGvzMefErTiKNMvCa8Jcngif6d8dD/ZRFUmBa5EMpeDDg4H6G3LL0m
+1VamMSc6cM4zj2axQikT5rRR669tUzlA6A86ViManEFlQnuOTMUYciy9ZhcLZr761irjTMZHVQxL
+W2zdQquVQjror0O7twLzNu1Wcu45CdD4NL28m5wzYSnVOYvtbo4Q9Dmrw0Azauoi7pM7UQPIl+Em
+5PkoOKUYh+LKyKRIWHWWV9yUfaptKN9Ny5XYBo3h1LU2heSFB/hzMDgD696qCrV19KYOH5pYFj73
+Ue1DLwD8zeyoHryvhZDH5CkzLVAhqShJD2WwiRNHF8YawmdlhsZGTls4jQZxSrPS2H5b8hSj9xUq
+cO87cRVaOxgNMBglIIdvOUnndmdmov6i5LIcOHkGZXZrklX/Pc99n3N2VfXmlyEoldKRYW8C8cDU
+eNAVv8rcTA1hI3tqJj2z9UhAiVM5CLYmcdbl6BwQhXSxlUxOak4g8KXUhoJbJbr6LfNmhEcqNXE1
+hATippqauitwWL8T5IyDt2x2Y2dbsa+QPiLfq5HwlcZipQrwUIl8ytK/gdNuSLaocFJxWgEsad9z
+CoRqPoBymLWpFA4pMvku1CTWVx4pd2JbDPYkpdOjWvgvtQ+/m6NrVCUOhyClhlMUp1RDCYJOmryK
+e1gRwCeqHXhNJpIEqBUQRs7xui2AMA8rSfL8yk3NcRzXhThU9QbsOhQdqWXXcnJJaptHzvfCRuyE
+XLhXg8T4OYR97G8ykWQYND3YausqMhP/Bn5F7+2U0gBLVSczf8lbM/pV1jrJdU+LCn0lt5A3mf7U
+yldVl8G+rM20O1gWOKGbtIK1awotrDgShEG/lpUqi+8bICsqfrQayKD2svkIHmQAdVIJz2qTylNR
+ugas32gvJED0cJLVEL7QMARh9lB2fQSRSOqCH31m6R6Qmlh4aypxYhOGOgyk2h+teJtX7czInTlK
+ZafyjYAmpNmssUl/a3xSdvbQRMZd7o/RMwFpb21CuAZ7qzAnxrwzyYUFMzsqBd4qQNiBj/d164Pm
+G0Qg7ao1PGWnlmYk2exQdbChGq55DnI11tbGzMeCuwM1i1GDpuWPsnDb6LIQuZ0Ko3bT+BNZh7YI
+6k/lzPSK5iOqKyf65NvTzAXrlLF5HFrf/5IPY/DD0tL2tlF9L7QFFlroTqSgcpKGmfG91VpYzbLu
+Z7odZHTQlZI+aFgsspavMg9oz50sa1IcaQQqsiNYfKzCppG1zVCn8OOkuuofpiZuHhPoXIEdJ01R
+kV2Mv5SdFnwVtEb4YYBDNa5Z9sOPLhyMH3WRyp+S2KC+qcjUVrY7MYKwb5TzPFRJP+4jMIP5Wbos
+s/3GB5SogtHSVn5VDY2tBYaq7AhhutyOBDJckKW74SWXLONTG8VRs54ESYYkDR/ONsO21tae4hPU
+yHrb/GqruvtEmkGS143QWr8MK29LV9DU+EmbGhJiXR7Hn6sYF2/3uSh8G6I0LtZK0rX6yioshicI
+pTSxkySoP4dy1keYRiTqzpBgr44yFpmxysmDAI1qyvh7qIXey4QQzEFrNDoE08yH+OJryidYV/3X
+DGLL1ykBkgRU80oIX9CsE0eVR5MDf5tKwaYpBuO7rmaUhdWB2t+Unppy3M+NwlvVlBlWwJchTCCK
+S96IU6Yq3AymClcyNIw/Q6cPBTX/n7B0f7wX+nkfkMys5/8czfy7uv0vysb8/j+jF9n8l0lVFedr
+HIeovedrGGj4IN8jU+1rSPBwZyrHn9GL9i9OYBz6TaqxLXGOfv4KXhTlX4YmSTP88gfd1/hI8HJ8
+kNV0ieCFoEWioFGRYIAszlwKPKlI9qvRLrU3uh+STNWmbTM13/uThvG8G5kzocRpcyqRNmwTyCiq
+JC3LqAvB8Nq4UQdbiutR+4mNSFNiZ14oqE++Cl3/x+X2jk8Pc/cI/tS34AzgEbbz8ekB3kVcjUk5
+2CWFK48kBXQSXXq0udKKuGgHrrQsGm+lekwzZcGLaIxfQaELpIeb3f36fuuu17a9vjms1667Pjj8
+/eDyf9d17C0/uYeb9c7e8Z7Dgb/uXZfXtu6e11Z7fuTd693u3t3y6oEP73ir4+z4tvXG5iv5+vkt
+65zP757X97sd32bzdfZqfnm9WzuvvIVHsJ35N/zMX1a27WydLe3yXr7x0+aer79xXb7qld/sVvZq
+xTe+uAd7t3u2dyuHz6xWK2flOM78thWf5/vmL3Nu+eFAT3iix7n5zdbZf1nt57eu9jt75dw5Lj/T
+6+0mp/MOT7debW8dZ707rOcH5dk2fPLR+Y1v3fLW/d3Tdvs0DxMDNX/aPRxSe272yeHXl6dsPpC8
+Q3C05YxZi6g9japaFSPp4bC+f92tn+nUyvnN2e6dpystLWrFT1tamFhTV4ncsDbW7sPL93vfvrdX
+3+4c0b7SjnIcpJ+2gxN6D6jVZV0ExtwOU/Sye3xknh3GmynZ3hzcG8f54zj7n4vg5wf/CwQ7bXCB
+4HlSU0YTDR7c12dWC/N0eY7wc1damCfxHUJTE5R7XUgLDzfrm3lBrw9v//Ln/esa27hnrR5eD+vX
+w31pYziH11fm0r7dsLB2j5vdZrNZbTa39h0rbO/cbFnO325v35bjre3cbZlvLA+zcJ2HG8fGPlf7
+B+fmhtW3326vdOdabxbIjCp2nRcxXu6L+4zdMGLXVvUs4HFxSuZHeDdgE56cAxR+aP16768wS8z9
+fjZ4hu2Rf3b2hp9mq/Zterj/fVs4vf27u91uf+/th6drS0SbHeylNbJwwGkDIpTOi/J+93y/dn7f
+7kJ7vVnPg35Y4+Pcp8PsJpkYJmJl4wOd+a/u/frZfd49HtyXHN+2sV9uvq/5Arpyv7E3z586hs/F
+izzuNqy71Z51Xtiru98ie//EVLuubLsPLIhXy/68usOTrF17664e8EP7w+xgLs/tm4jCpX4uUb6c
+jKzESsVhH+wXfG5n89zfNmv78Q/PTPdwojeOe7PmIVb43ctPoCwA9VNzXOxBkzH2Yz8P9Qvu/cAo
+HGa/dnhy713nZrfDW29fsRacNR6fXWKzWpW41/WaMWfr2c67gPvC5Kxf3d39PQ6bdXP/6Nv2V1bR
+mjlhl1jtscIXvPbefvNlu83ufvf4a+fbvx7nL/3+fP8a2s+T/d23dzg7/ND9I3/99YvViM/fOndP
++Fj+fNg+rZ62vzu4/O2T/cwuMti2b28w1a+3d3df7/bb1efdfvvz6YGdwnlgO3BWqyfX/u2WjWj7
+cOM+YaL2ar+/xWfvtwy9y6i+DTM9/53hZnOlRfaW7YF9+XDjbFd3mPrbG7888evZKTy5Nw8vLyxE
+5+eVGbls7/ISGDJ9LxcMthh2yRv+Y+1uDi5bHqZvO+7+j03OubIOKN26aHLoYh77gLgzjA5dAgZo
+XuiHe+wfU5tbnXfv0saK7O/zXo+7xC52Nm/EO6wf512ZiWbi+emRD+zsOwKCNT/Nn93tNnf8uX1i
+0Ny98/AW2DCs63nXxKLusNzdW7iw3e8xyHmpr+c1eL+e3Wlgb1lCDD/eeu3ij2/maXS3LwciHXd7
+7/KZyxMw7w5/2SQ47sxoJoWok9MwqG+bX3/nDKnypXq5pZrClAWqspuCKh5Y/6vLrRzP8p+tKIR/
+6A9ZJO0Wlp97NRwOhTy+l0UwB+dUc5UNySswUemGsSXcXW7vtFeaSPAvvolcwF1e7LqJNJGfHIDB
+2spS1yFsz3WQUL3/8VYUjeQrilW6rImLXkmtCdlHhFEVqYH8VQzLFPxluKaqdDp2QLOWBgwKUEsu
+beGyqpLkVmNYlT3EamA4gQVzmqJwTYMbao0UtkiQLp4v9+x4i5zni2yCpsmmSDWkhGjM8aqwID4V
+aTfCFSszGepPqUHXiaOD2ALSfbgpTn6ccywN2gcKoMdNyVA/87SFIZgnkLQ7C7pwEbaFU5PgviIX
+c2YkdZKoMO4ZRpRpFiOpFagNAJ5RxhbW0a4NI32rc3y7VXPFuu+r3Nhe7tqZVfi+vbcigHe2NTb5
+lJM7pjQzk6Zim0peIayiDuz7cjtnZkuHBgB3ilw4p+fFEHqAq2OYQ263ElTEnCiaotFtkL95Vfyu
+vNLYuUHUDBIDFIxRwGzOr7/rFAlV3awjED1gttgFkJTvAh1kUFNNgFoglCsO6mznTAUdIewM7aKF
+KXdUjppomJW2lLSqrVkRVLBGhkQagt59fBzJdiAqoyO7BYnjuGuSoGkoXYglYB7krAaA8K6OYMhY
+qV9dMbDjkO/NwPT3TS0MrJuMoqoleqVN+X0Ax35jomX0xZAU9bZX4/JLZbYvl3t3bjW+b/JkIENh
+oEaVgYT05qiVp60RbvavmPPZVlD9gv5CCQMabcdjiB5HQP1EUFHBarWf4ryIHMHMlPu/0RcWO8ZM
+WQNJh+NWPM1Ty8AySkjIKVVqQ66vwy7Xr0AW55Y6KlkqoBRAqLU8/lbUk1VhqZe2UFFu7phWEu8T
+CgV/T4s6eLbwV80V4zq32Bk63KHFN6rLRG4kBEkV6goKUOBlG/DTb5qqfpdL2Vh9fAANZMdQzsLl
+Ij54PIBwlwK/13AZgQdFu09r06VirrliUNLx6Xde5oA6Fjx8KBnzRrLwuIEAlpxoWWWXCjWVdUa1
+CNob0aqApwKlOlfsQteoko3jjQInSSAHCB15EtXgihc5XZYUhEFPkmWoKHPQc9xf2L4cLDt2GSlr
+Ev0hq9Wg3gVKm9ZXZlCazeg4oJpLz4h1ZIXkqrQMPYbaNwNpyCsg7yDei4ncrcuyUJ7zrjr4ujDs
+0REkexPnkq3QvjOMMSkdw2mkxtq1o1BeCYVOPY3F5opFWqCoiBcuzB7KsmoK3UBJuWj2CiC6laJR
+1fS+4vaiL1P9U3X6Y9026XBl9k/HnJZlBNrftDZPwqNRhpPQSnPuR8kpccuj2JmUNrsys2f7966V
+xRIbu8Ka/BKnzbGuQ9EmkR04YMImVX1Kpr/lUV+6H7Ud+sUEM3D6XEG48N2kHzOFiLKEeGVW6OEM
+qoMW5AepdKxRWkFCDYUWBQbYLFH6fp/NctmLa6OhVoRyjMfcHKnhj+toI7ZJ9L0Jq2l9uVfnxpEl
+O4vaatjJ0iN4kEHDRGNH0qNeRR2pNIUb2YPoapppfZC70WrcASZsfGWVXGt30U+9paa3zNXSTtKs
+uon6PN8VcDgPUQtbFxKt6ohxJF1xf6eefSYEkMOHA6SR+lq4v6GgRiyBp23HUOtfSGqRY6QKEcUx
+8rEok2VC8/Xy8M7feOwWrDkhgVoFCUqSGYsdq1X8nhysX9qdV2euXpaQ1FMKRYRs+HjYSShNBKMr
+kO90JEWOV06sTlPc62pBbqtNVmI8teuh0T4eTFvoMBCQEAgiBL/kn6IoRdGMPBa2gPDoRompTIeB
++gD3VLMTqOCXh++MLzlqbV5F76LO3pf1etDxVpQKeZKjhNQHOJ6MisiVlTHHJ4t5mvURxXl1qKSV
+FvELdozCXTAVdtKJ9T5Aa26TZ6m4z1PNXBWG3j0PvSDEdgqM9GeB938Ei8+YAorfcD2JrzmQK4tO
+UnRDDUzD7j8JjfWUUHB+L4ly6xSyVu5yaGeRXQSedqXHZ1Ym1JVZqVVGykaXFxsEZxK9USSkOjTJ
+Q59LQVuskCJqQ6EsfNxXo6TzFl3rHFPekNl3s2gW9VirqG0gSZB3N3pbojUITXMfoo26bTyjCewE
+qcMrHubMlAJxgDsQiJiUzS72/ioo5alpaFVpEVOwk5Aarj7M672WK+3dMMsaZKZVUyXahVeaPlm2
+86arzwKlKAwpUJSPl63m9VmBzkxhIzZCFYWYKWuwmO5w2ThOZpBW2F7RQxZRjznxLZU3KFU/sWan
+sIE0Wc+8a464yVYpjIxbWv47bfvpD0t4X7p+rkd4F8JPqudNRLCPexSroRpqBWosMXVphV22wvTa
+CXJiXFkqZ/ukwkszTZABfenEoBUVZg9bh1UZIweJztqNmLTprhza+opvOdcUeoZUFOjzRrukkTe9
+l0GVh7irlX5tA3sILsK13yi2GK8Eh+cGb+akSaY0ly4sGdFlagbhIBeFXaliuKoEYt2gD8rVh6do
+3mbYGhk86g8Wx9jaNwKrDENcmEaNE/pI1P7mqXllgs70hYB6xvNow4RbfbwQsCLJ9BOq+vt4tBxS
+9cL3rqXG8YoFnZkcZdZcgCo7E56XwswGdLlA8OPCVsvWW8OaqZ1Y6SIHOORKHuZsh961NL/+zjlR
+RlJ60xjBYdO7L6aRKatMRvHu8tycBB4IJgBNzr4Pn0t6/7gRxIlKpHMofkKvBqmFaCifUqXPdxbq
+TVQo9cOwudzgsk4E0JAWKZSwFBVJQOq7jlucyiRKevSabNW3GECEF90hyyjItjoZaSLNC7bZ0Pmr
+MdQsSGml/LswCvtaQ10zUPoPkoj/eBpVRy5NApuFTnH8NIFI4s0cWDWxEbwarSCge693V3C+czNp
+QNKnSJeTJzjEcSN62U9hXVCwPSAwETpjH+mNW1Ptrl+xgXOzOUvC4+AtfMeyFMlT40xURhYnAmVI
+hyPmaYu9sJa0bkvF4bWSn3PdMmFJoA+HqDImftytdoAJCIELZdFG827ibix3BR7UvbxgzrYC2IFy
+3Jsq3iIAMhKjQisCbxjVaXWbt0FKjbcSfnyKGDYOUHhDJmo5cnGGjIYVBnOMagR3SW+pjhRqwUdh
+IsiTlO2AQyGnB145z987kzanTmiEee3HoZIe0nGQ3cLLzCv+9hTlmJuBG6Rx74HOqW0e0nfNpPqU
+a2JqQK1rvfBWgIS2lsqEuk0NtTixQ0NWe6SwwWOtG94NWPdet4riyt4yz/5R4MpDSJoERV8DaTGX
+Bwxq4dAF9ROCAL2TpVUzBHX2SR00sbvV2r5XnKG3knBXdVQafdwMOAnAw5K5HYMQa/bh7/ov5IEG
+6Q61gDGNlJhaO310+yK8VVTqmxEh5P8fXqNsPDL4M2o9DPrCp7WyMcwq6/i0IEBxoFaqtZFO1yzh
+dOuRmFLQMVYQ8u7LowB4sz9UMDFtPQh9JzGNfDdmk7FTPSu4soROHQlNmSgMce42Zh758QjiK3Wx
+0hjBPNZgSI/5LIMjwhv5bNWK9jPo0967YufzGB2vF2AqVOVAGXFfqrXwJkFcaoNfKjmE0lRwVavU
+vpRtP30vWyNxJSmTvwOBDDcFFzZs00quXy9P4elylRTAE5lTDlEkXu24x2mG+mLXtznSypXvJrrx
+E9X0Vy0DnCqtLLVb9VpEeerY5hY5sJJJA2FVFlZa9yHKZlI51x3LHFjLtt1iKtmVmTw5bMD+pxCN
+HY71yd6zcJ9y1MCAy7l0o4oEFJ3NLKQYZxpT1a0KT/1Uxt0UIuMQgBcZSYJM8OVhPbNmNa5B4Piq
+krvjRHc8rNVUGHFGatsWEq9ca1yQ0DiWJwXPeV0hJ365sTOOjzQJx2QueABD4Txw3BqV37HaN3Ca
+R73+hF+MnyXPimFdV4nkqnWgPcVKyjF58Pq6WcvUOhu2UNfl56BSUcu+/DRnRp5cLPxMk9B6Jowe
+P4yccAvlVKIDHZcB5tq1zfdeJ5bP0O23k9GLD7X5hTsogg9vZQwCKXRQM7ia1OUdtyumVqKVBStZ
+G9WEGnKfIs2N1UlhfWW4z80thy74p9Q5Uu44v/7OzaItGnmwTtEPqlvvczdGirEaJcu7aUKUGTeX
+R/NcYxaQFeijRbnXG4HiXWONSjGI0MQ5V4Po4h6dzvauzwwBFfi8f77c1Bnnh94azZBMRG9gmeGT
+PFUbjYx+GZHh/YwaafxsNka3QTwy2ZLMDL5ebu9M18DnYRxTq0O13JJykqhCmLZjjl/PDRORQZKX
+VeWTTeczH58ycxZ40+augRQv1gYarYVfN2j6WqNaodk9tNwEoU2ZspPkDBzwcsfO+FSTmIqiUDzr
+DDYeLxCq8fTEb4XMlpB/d7w8qCNbKEn6ISxfyz8R+O7EDRLh+pWT07l2gRppkhIyiCQLy2ubXkpQ
+4qPdflaXGtpQvUN6m0pJFBE+c7NPfkuhunAluDszjZATCAEMgi9+WJhDZ3Rq2gg+rq4BIfAyrLyI
+S4RYjVq/4lrOrFA0mSENSODFiNksBnZS+tbo+jRHXGOanATdt82od+a2rbzI7TNfuAKynOsaR+o5
+dQJWzGHxeCLL3vDLwbQy0puqvpOFCd0GxJWoJAqTKyt0XoGLMIC7c6iFZQzp2BIs4PYSmWoRL7NF
+yj3u1AroKFK1YH15ZZ5thX1XkzUygdbbRvLOm1BtG6eoCOY2Ur3lqvRE84basP7DOBj1rzpohAmA
+q3Ebz/GwIYgDSDoiDFYiCmQ4sNCTcatG5NTccRaBuuIiz60K0Kn5HENQcXKZjihOOsIj+C3kUp66
+ZnpIc4qgdOIp2yij8spEnWsNfG+mT81ai8s8XpHVka5Q6GtXI/coZWGlrOvYN3biMBQ3Uz+1V3p3
+ZsrwyKDQqPjTprYE+gwZISIKApDWKND5ntBe6VwfKcZrUcSZxU4TMygGPquK8zV977e1oeBKuibE
+jgeq+VIXrejWNWJ0+xCx8aqnywvxzCgyiKQlybJTEbtszBukIaNwHtleK9Ayl8dBn7FSuSnBEwBx
+Qf3V4OPekR0bpJSYhJB7uW1PucmdO4NMBWcXek4s+K4qU1lWt1wOoHrVMEsF9+7lbp4bU4JqNDjQ
+xwBnmofhnb0FiOwWSJ0QY9bJXiaTuEpSBfkwlNCvuMZrLc17w7uW9AJKGIygzC7aJux2uOomWWVj
+3BVcXFcwlZc7dmaroRaZs/wcm7CnLDqWNpVJDZmUIVY4NRsE+oRPk+5ZbqnV5UoYrHFvlKH39W80
+SnH1G/2I09KiUYSGeyk0lQwBcQYxhAbyOR31z4GeVWtRL5V1T4nZlTbPHM9w/ETVcFOhLCyriWsT
+4f6IAk60RUrJpvSQYskh+Tp6QcTF70r6qqVi5WqCWO3kfkivOJvTWHrOCOFCiaipuVoaP0rtxoAw
+WWa3xiA9tHI22klQ+b8JXtkeJlOghs4r64NQ1Fd2vlOvMy9XLIU4GkBhuR1lXAgTNuCTtidDGiKd
+4a8iJZIfLk/oqRfg1GkAKEMpA0db7q/oj7dhKAcANl4bvPoToiEudw3l2Vr1hvy1aTX/t8stng7o
+fM4FUuPyMESeln4naFIhECsiCG7gQ5WnDDPtk9VOMVKfpFTWmpJRkpn5IvLThRddYyyca/0tipc0
+avmJs4+NlNJjMZS4VghByAINTUPAMO1eywPugOm5QshGrXTq3WIQixjBO0H6dbn3p06C6nsWMrsk
+WANI6XH7OtkIwmScBFWuyo7/fosLtd/IgWmuP9wSECnIEGmcN4D9uCXODrI1JeySmWcZ1KdPJpdA
+WTH5/LXeaWNwxR2dWimyBhwjiAuZU2CF4+bqSIijoanZTuSk/MkG4sZ9FLtS7IHANVm+8dOx/Fb0
+RrGJRkX9crmzp8ZC60DpCEmLKP6ai3inaXU95tYKbnNKqugGMWGR6wEy+cMmObeCsAiBL7vz8l4S
+LMSEoY3KEdC2tY9GlRsUBmH3N7qChhNWD9MT/dzFQMLzQ8iTRvR+Kj5BSPe4XUwUu2s8sDOWb7Iy
+gCrRtCC4Vo7bIXeqpX2G7pWPbJFrlZQ5WlLq7+D6DXvTbIQPh6QQeVDWIEdGFekJG6z25TEv5ykS
+hEhZJZ2Z3GngXqvUH9RPl4fw3FqEdSn+AVjCST/uWooIIOetkT3f6OudGJWqA5iQujJ3hOyKuhL3
+Jbn2B62Kim/UwBVXTOGMjyGMY0hBnSDDL3nB3BDWQfsg+OZePkFGisgqP6lmYoBjDkb1LMuCxu00
+alg+IwY2Vlc6fxoXEGFxVS7JHhBwbuM87jwXOxWyBvxic0eD+I3JCHU7kzFGp+XOuRqaYxw/+mgv
+/g2HQ8NwC5hk3M4S+2/CsC79jkPAKJW1I/CEu86cghfJaOMrsevC3GdxNdg8iDFhiSLzPL/+LtTy
+ugDhB3UMXbGvNVcyE8Qm8i664kGXoN6fzcz3ZaOPhNNerCOuAkfdklsY3IgcRWMlrct1YshhihGi
+Jnot3pFPzPaxInzyBm9Yl2Q7H5DQ/OByPnmMhUdQCzTlCW7DWaIvtQfNqDYEhv0mN1IFXa9plesK
+wgbzxW8aRMbVZWNa7FhvrUPug62CKA782IVjr/IwDyMDWUnT99u9VurjSvTbbp2H3bU0w7lpfd/U
+bNfvplWfFGPU0i50W8sKV42SmK481PmVaV04vrcOvVdNXBjIX6qJXlgZ/V6EAes59VjE1U4Zkfl/
+MorG+2A0Nzd6JIW4GMW/KYV4pmtHSoizb3g3gEslxFZKlHjbKIg8biduPqH+x7iudLhwOG9dI3U5
+s7TAEjmMHDeacx9TEI5q6KaDGHEvdFS03DtoTHUvVdxMYwwW1wEHXb/x25Js++XVebJkjoUPl/T3
+f0b4cEn1af8XhQ9PzG+he7hwdX/pHkpiHkifZK3oyi8hIirId8JvqZsr2ahz7b2XKlzY4D8pVbjo
+2j8pVbhYo/+XpQqXwfE/LlW4mMR/RqpQXuJi/0OpwhPntlAqXDi3v5QKcWIiFxYUajWGgRNoiPBx
+40HGzUPZamySUF1/1MeACv+lKagsRvOf0RRc7EqXNQX/I6/21F1S/CDqIHCcZIjFF2MYISng95EV
+ubJM1kfjRpCVAH1t99EBo5UZIyIlCjC1hKa43qsPChPRqUKVicwod12HYn1NuvLUU+mkkTjiUp5J
+xlWfX3+32QHVe6OCEJYrdAhABQHqYSFK4NvBI1l/uUMnW9zMaCKmUji8UCi03OKqfK6wDcPYLSkT
++zHFbfqsaX65LiOu5Ki5vmDvA6J+DE9EYZRG3/QIgWf5cdG/amKA/ZJRjMKgJGUMjb2WM4NLXrg2
+8XL/zg0ltRWk6zmvzBqHx0OpJUEXUvZFBmdSmvsiyFMn70zpmwrB8MPGNFfuwUECUZ9hvcU6Fyfu
+2yxaM3bR4c03Vp38Xin6NerB6XyxHkhHwPmf5YKX/rZWJFSDqGplARrj5xZxb3cS1OCWmtf6IAZF
+csgmobqWGzs1ruNWF37C00dEyQMvdBWpm7ZdETabvO7k7eW5WpwuZ+FZZK7hzsKQgTW5xAW54yGM
+S4FDiWC24ac0brny3BgyJ1UL+UYKuOfI5hplrjMIGu+3y02f6yAQISdbVNPBQBYdRLgVOcBh4Dyk
+6wM3WcnxbdyI15Cks60AapPdB+2lhGyxGKMWxpOnha4hd91aKfIYDhni8Zf7crrkZwFONFxn1Sxy
+cYtDVW6IaYYW/nydz+S1m7wvank9RVWcbstUbporLnFe1u+Si2+zRp9gDyBQbnKaPO5U53ONRjmp
+ketNpbrhRpvpIdNQleNeQ7Aqq+2sK8vkjAmA+kHBmXFzaMOLuQoaVRU6o49c00AYuWkkclaGkJtb
+DirNuoNTftsZdZ2uPjys+GNIN7Sqs2cuJq8R0ImWkC/lnlHTWKOlyDXTYQukm3OYv1Ywf2ZQqWHQ
+SclheOi6LgbVQjjSsLiB0a2bxud6LHgObxe1mroT6lYdbGOusE8/7JYBGtHsmjc4JMLMxUmOe9T7
+um5brnUgGeqALXnPet8o20nJux+XB/OMJZC4wswBiknnLhlUTWuQBQi61IVDbzid1GlOMlk//04j
+bDbgHJSBWUuHLBU+fD6uqYAA3a+CjCs2s96aruygJ+YGfPKmu8t5bRabXkzVgGo9ycUod6krLx8S
+YHdXRP1xE4yS/vVyh04cJOtdmxNilNpSyrNkt2UVt/JkaE26Ua4pzx7MLG8XTiMFrm7uVaLF/TFl
+bwbcy1CU8WvUt5ZyZYmQQj2ZOigSUCXR8p6ZIFTYHds7eeuYgs+4XI2aGFMDLkxKIiefumSq/Zg7
+bdT/Yuo8thvXlSj6RViLAUxTkpKcc+wJl+12M2eQBPj1b+uO3qwHbVtiKFQ4dfYMKcQv272BIR9O
+M4glK2wxE01sRnfZCDXWslv7eW9dU3yVNVoMeQnheBBvRdDRoXjPTF111UUAhVr87dpKZGEiSivD
+CbKs1w5srLXlVuYC+uzW0UrVyri3OqmomtyXVQ+RALZTFNv5/xf76H6OQdGqfza2ptv77uy+eze1
+wdT+HWuplsRZTGkfKlg+YxVXtqraKxiH5ZUVVH7FcKxazYcuOsWAvFvyqQqOZ0DykhiQOVsUM2GD
+a2I1Z6eEyi2a8I32DqAbnz1K6y8QHRm91th7YAjesxJldwlXpg3StYH81vHhe51dDVPVKrwtl257
+to3wWZXsYRVlacuQvE4qo6LpVUt3qu6n3hPuRRNFGQ1CvkvvfY6NWdw9dbESDbyLadzz3T2otQJL
+kTQA2GRwMRWz2E6qRWoV+024OkHKZkpZgu76j6pozJCBZysy1zz1y253f5uh853y9B/JcAREQJRt
+pn4Qd+hl++xOldGO2HmxoVQV3gqFvPVRlnzYS26x0OruXbc/D/6ApjXKsY046NkaVbIEXlM9zmcP
+mjYVLk6j715mgvnPsEwN2GJMDLvlee4rmq7x2lXNVOC6n0X2ReE6Sj/55dkL+TPK92VkXllZAOni
+xpmW/d3XQZO/ll64juKIe8C2Npfg/pbiMSiWYV1jVmZC+bjBYGm2WDX5ZqrkPJUlx4aUrvv3KWBb
+n7qrGyL1tht3yzRMM28Xj+Hs5s2P5MR2ctDKIsxBNm5T5YRM/C1vee79wvJ+HYx185qm9AzGJiny
+NaiKpIRFbcPRWUb8v9M86uFAxYoXOXqpMtOiWV8GP9xPBgfo7jPEYLqqccAtQCvil7IE2x9i5epY
+sVpkvT+MS4gM8gSdz8ABdapu8rB8zpW7AGALdyf7nafO8XiUM39mbUEYY1sf0Gv3mX11qfdpTfJK
+jOZzKKLdvtoc8HKvspuW/NmNsEB+YbNVN6kXZWJLWIvYgzi0VNalaw9T77bFzollf5rx+1sjUI+o
+tF98/vi0jcGNMZUv31QVQs8Ks54IlCC7m0GEzVlv5+JiNA2T1xgYmjGfnWx5UY+tZbBoiOF77UhE
+OmB2k3XtTk47RLBt8OPcTl0hvKBJrCIEiBLvDoQf53qBerxHib22y/7XKwRTrBTqDyqg2Abt2csj
+EqEuZFvOFrux48rau+0ThaWoclys+R43jpMLVKp4/CBLjk0f5vWXN056KJMgt3bryS8GjBPY2jEZ
+nMgdmBTyCgKst/y0lamKArZOHk1LctZDzPNVYDejVHf1GQQ4XU6qKYblNGnWgudkpSgI/HT4D6fe
+uZXfLvgWlUVXXCqidYVG+v8h6FKIoU7KZQsH53J3W8LXK0R6syxPXe2OdXSYuyjY7Ncp66l9yO7A
+2lbnmaQIbjXsK30dIhqancMAjXKLt8gs9mGeDZZAaQSVe3poq9GMFyNeHiVAg1b1dRVHnrNFf8PW
+YeZxVJXx/6mh3IJr2wJU+AeU39y/QBiyRlR/iJUQHp59r/86LjE5dlayhWTTJZhry8e18MVQIC9v
+luqn5gR03neu5xAvqoTwZX0HqsXcqFzMcDlle3PavAy66riNuR37OaxIP3OK+4jNg6PTRPU9c7WB
+eU8bRLP3EpZeWx8gY0zaiRl698W9P0Apg5nijlJ8OC697x++U+l+KL+aaQuwjBSd+FiMHOyiXkyC
+DqFxT8itreZ6Nl3mpT5u2DKpq8gZP9zFCQWW4C3+zjfCw+X8yanLZryxOYGzh1GWcOmId8PHLm1T
+vOUg0rOfYC/D9rGqMTF/VFAyow+0QGN/nHtoVGlhD6s5kavCvVo17tLygIF99ttHsz09IFst26PO
+Sx1988ieybSZjdzlcfKdrvsbZbLyWSqcuA6Hfl8n97eUK93pWPSTw1PNM2LpR89tGU+Jzij/uTP7
+uF9B2Zas9UudNfVblofK6i7kNvtzcLS8Kdf2haZQyCD8bWE1/VtDs1m/ay1HyJ+FsuUCek7B5Pp2
+Jg1Aiu15iIV7yobGOjcJLkh5roGlF7g6Yw9dnFWpU+GOek58043db7C0wNDiPhxnNmWL3FHR1ygr
+a3gDdNiWHEo9D3oRowyD/pnUvQH/Fy/20qqOQBrq6RSGa8P+OYKv8bYU3ubGCGWwCwp7TTxHejAv
+ny26UOCXvi4XQqONj36NDgSNpY3XduzpvkRWhGm/xO0+Z3D6lm2i/Zt3QxUyzWzWGnDNYMNKZWk8
+cXkW3SSA3N7+zMsePiHw4sSOWqvQj3636Yuc9yu7qQu36ACLF+NHaDP4jWd3rT9nRD1Pjemrv37p
+qfYCeqb7OGyb/8jSaa7+OxY+89CeNHuOs3/VbWOxPJMphNBzCi9qT+OOscUJM5NMHawgkzpx+2jy
+LnZ4oYxgw7l96+2Am2V2cTlNxrJTMC6FFRfQy5cEIR5WBN7YNNWx8r3shuoGKPPQNvtXKTi/Lwfl
+wADDMn1Dgg0x6zCNdn30oQPLo7S6/ETxgWPIYOrBQtQGFz0d2q63wPXWfToxuVtOG8fbp4sWswF/
+xhmTePXKTSlNgyvQiqpVJWbalvpyLtfAxHIN0Y7hFBfluAfpbU1LI2Z9lWN5YeKq6oKLup2Uxq5m
+C+3UEhxDsX3+U8nSOzWaD3vJZDLZvS9SVzvaRmSXF0+EO+cduF23xo6J5leJzf0rkOXsX8Fk59Ge
+sD7highhHYuyRwpkBRPwd/bCIzztw5lkFdOYwb8ZMqBtj32/d/PJkXM1XOqeHZ3j4ipHv9ZsmY+p
+HANRxpU3b4yBeh5Nf45aechMCC204mfuz/cBaI+p+zVRWeY4CTlKH6RyJxdBl2iw6OcjtsDrusX5
+ijavvc7dHmIuymYwxWzlKPdUin1ko3wvqz89t6ZMyq0RR5etb49P2yEp8ryhQ/bX1k5CsQPSWDb8
+EyE+OXheh10Ru5Wdv011VWUXmN1vThyQqSDBqMKoTyK7Ge7rxg+LY+BU+NlE8+Kro9vPFiP9aK+j
+uN/n3iTFirI3Fp4Nk4IJteUd9qUdnrZgbr3nts4rO9l8Uam41QFwsroYtb71gnxgzTp3ozzp8i2w
+U3zjveFu3C3nogel6132bqMzfkhIsstgsSFfsRkEpjhQBLMZEGxz7NpV3DtIq/pvu69NLEJiZjz6
+ePmnRT7ya906iOrDGq1kfH5QejlK8S64hnUbyFPYEMMXKOFd/Vvvrt5+If7MH20zcJ5URVm6aTdH
+0XRUe27xXewZYLNkzSPuNuQeV5mevDfHM3N41WXsASQFJNWnPchhRQwo76/1mpFcrttGkrfuQ+Sk
+kIBznWA6FWG5WOjywYyO82eWUXFTNn0Lnc5yc3CnYVSVCTgBAiPoLvk6OZb5A/0ji2JQlqX95CwK
+uwIPiUP7UU8gPcu0nsGe3vFagplED8/JBzjDEg8Fee3LDiBjSK3eKa9724NC2+P6vcdz3YOvzPMi
+dC+4VXCG96XYZh7VLnpaWTepAD2XsF9zZtTFRQno0z/WSHWA+bLGFBwzldEO3kXWFnHRa/tDbuIs
+iGKbszrShJwPkbuiBs10kZ12Z7XwIPLyvD0J8unhvYC0HQ9hUJfJnC/ELiYbQY3ZPyuS7QWghv6B
+3pvTpKCuVvtyDJTNhpigZuH98kuxnjA319VFJ8NpuCZXoWqruS0V1n4Rv8eqFm9OZy1ZhWeBpXhn
+rN/+Ovae/y2GfvuL9UvxBTyxuek8tHlAC8TwsFdL/dJlotGpxQP1ATvQmk9W7XYvUy0sYmZr7+4x
+0H5DUmBlkUg9Egr35Nvari/dpp1fmLN7gDeo96nedtW5TxM7dubABtKQFlnlcxYITq0EGS/eWFkj
+w5JksKNAXRvXf2AqjzHFzjJTdESjb01HEUyBfoVkHtaXStakw2q1gsPerJxD8Vx2rjoMeNWVsS9E
+8VnlbM7HiNas9qVa4Byk6xkgdyIU97eIKDJWfF3I1HGwRD7ojAqfAIQU0T9rcvQ/S4no3yw9Ktu1
+ygBIL9biwVcLZ84zBHZNSR3SOofMozxH93I2i9R2O35t25kKmRduW8czHIwfhiXUQAqQJSmymF5B
+ZPffbWeEe+WynX6yLT8sE9rZ04gPB13gI5sr9ZBUXob2pChG+23ts5XXpd/zP343bHf+LrOvSBnx
+uLjO8hiJaKtPAxkP8knlsVUctLjwHMqqGkEMt3N5iGwdZjGAaXO7jY22jo2E4xpgR1rHnjDqp3Lx
+SMDlpXN9AC9OcGqsabVo3OT712zJlVX5Adz8xVrP7vcG3DJgp8f0XwPBYz8EkFpuncqx/jlLu92t
+gj740R1n/wuycvVSeDhksNLYzFeLD/ab13Yhvhs0PisgaS8w6biV7T89WuK7m3XlEN+MeS57hSXL
+3O9NcV+Vo4Tw1q7dr93Mk0k2wCv1wQjZNCg3m+Ua1BEgEbcz47/cl9kf4w7543/UE78p1GehvLCN
+V67aTzCq6Vq3o02u33HPY/xXtJ00tSAPBNJxXtuVM7IFSxow4tSbyx1sIgq5SteKqsoU5zIh9MoH
+24F+Bvqm9OjIw5HXx3U2K4j5sfSCE4w1+9NXtefjTTLDv5k8XneHtcuARhU1fKpZawd8HmioaRUI
+xZBpkzDwTF3NCketdX+1s3csj5tDYX9wRsXYU0mlTkHFtY4j1SqI5Iuz5PEyBzxk2SrlfTaGxRvK
+i+Zlcxb6QBR+yxy7QzRacYYDgx+3fqif6ib3ftc+am63uZzzK10IVx6ikCTmOOk2VEm9nCcqVmbn
+l/YYNOqodRS9cKb3UGu9sruu2PBWl1Pf+H/61RW3uhK7d7TDonjPSViXqyCfoqciyoxm97Fmx2B2
+tZclphjHQ2jroL4YbdlVSS4H+TccXY0IqMuaa7lP+5vclkElkzf7HXZHRmyx4c6cWkaR23Fdi/0j
+y7XRN0QLrz1GTu0cWhmqLRmRTJDODjnFXcaX5+qYyHxQdLsvXu3mz/XEom9cqtFz4lyQA6RObax/
+DTCma9b9ziGc7pV/nNZyCBK2aNRDoAzEFG6hzQXYNz/ZWcu6x9PN1dDUd7+L11D44yEnbfcS0Ujr
+0ls3vmbEEgQ+kO0WBDHvs/xhwpe9WoOc3yVy+j+MCcx13iyVTlTRRO/htvZ/6QQ2D9MytN+Vt7uX
+kHn0lODoNXmJZkqEWwaaf3RwWwQ0qQOByd9dDE+UyNR2yCyA6bEts5ErS8ygD+J481ODuQfFvgPA
+kegZjA8rVeoWY+Jb2deDEd6f1czebeBX01dT1vLdhTYMZkk26ruecZ2KdUP/M5nb3m8Je1UDSXaZ
+wy8mzCTJSxHlN7s36ik2XMRbQB5WyWqVXm6GJSdJsezFTk0WND1rXaPwY0Pd8SkA2n6GpS/53M7A
+Sog/2v1JDlVWx2adNCUQa6UDnbOyH09ZK7bbLDxDQXxGsSCSCycASw5rdzmQNRnou/NefSDTzx6c
+xd/WuKU+AsKVn7O2Ua79BQDxFR/cwQ/gGrks7F+Fk5m+nNXIF3+PJLFb7N1j36nw3YPdbi4hcdUv
+g6r6H4XE+hb7iN4cS7+MYNvjgvFhaRqpscMJzPJ/OdpPoIg4ArIC20xCrB886s4K3hd3oJRDRSzf
+inXl6Nh6w9aPP9W6uVJW5V43M0Uyua/bL6nb2eKjDHts6agZMgrSUGLkNJO13LR7p+Z4kM24xrzi
+/rcQW5MfinHD+KiiIk6avK7vO5d6gj4QM+VTM2bVzbRjlHDKRGRfhnMd/Oat7K7O9DidNisphg3R
+6IXOcjCmyJCzLdGhCIs09AYE9A0NMawy2Zu/LRk2/WyNivyjUr1z9PyVjL5TFVA3Z5rmT2vcogcf
+cR9a+w5Lkrj22mZKIrwfrxll9l7M4K18zttaDcmgOqfBkHUl9woxjXJj5ebt8xKJYEvabXD3RElb
+30j43BFHoSqfQlx4g7gdVBkc3XCxj9zjYSdzY9W5dWbxCQeVdXeW3p059RpvvmnYjtsuaqZEL4HY
+puIK10gOx4K0uoiJReIiKiy9nqx8CIJ08kK21L2cICNpll1ldrPfz6oZo8Oui/radGbyKMA848YR
+ALr7cvM51bogZ4zZLFN3UQYMig47vOYPLxv2rzHS1phyD+ubRSvHTqNt5uFu6qx9V6IevqO2kXni
+k6H8MGQwt1WwqSKlZu7ulDaiebCwYlA5LGuawKnuXQWVJ1vK6dN2TUvaUS5yuZOZk/tp2IWj+a53
+Yc1xVyveAhEq7oJFqk5lOLu1ezoLAFhxLqfoxwec1h3Gad63zy1b7OeQweGFWS1Q3O2+Lh/QlKOf
+dumb4hjaXfeGcbp8X3pRTcnmivbTKjl1Y4uK+3UXVYTpkh/1R3sC5xdH/rI1BzEvUXjQSzaUFxO9
+7jl2OmnvN3kTkbPslMXPvpxpL9rawRnApYHdpOVQQ9jCqrTXhzCs+po2h9s+1xrjBKzT907Eeir0
+p5IVaagT2KC02oYPk/bryJ/W4RjMqbUbfUvyPFLLmsaMoMnJdg9s57ctPbVh/BJm9cP8p9nPLQVj
+jeNjWIkwPDghipNk20azJXvpdXSmgkVZiTB67zlUhmk4c+78f44JLGx/uQ+lc+FF2/BnzBZcTrNg
+Gd2EHjNljQnchU6P8PvhapaOaLDodF26Qxjr0SWehqJNun33gJJt9c1qia1LtdoohfIdh9mk0BMm
+8sWkBvB2DjkGCpgcGXA7tOCQK5b7nqppcSz++9rf2W5F3maq3WqPO11fmfhd6T/CqEZVos0y0HGr
+2+AOSzo3iNXgL39ZiNdLTDPEGlKf2zyk7SQKGlZDlD+sBmOcmEZJbZ1WVLtb6mncOROvBV/Po+PI
+2ybL5ieGKi21vek7+xy+m69Sy4UwjVUTP16STccis9cXB+77/dBqpU/I9auHucttJ/XwiHhUEeaN
++HkrHN87f3MYV9nFQiZgzY4tjktEy+itLaocjUeVr3bS912539ayplTzOAbbOFQLgMJhFxh3imbf
+mutyCu2LaRjUGg/M/18KniqFsqYJodCxpZ0TjEteqBKtTB5rELIUor6Xn5bcDfcUY+KBUWZWKeCK
+mI5nib9k+kt2jbJOBVXqJT1V974PNv9f4UaQLNsN9h/UQaY4sdc0u3Ws97ze0ylz1pfNE62Ibbs0
+M94YsgkYwpRBmwztgODb4I2lQ0QX7r7R5oUpUN9t+Kd5CXPabSTb38JbhkTTawbM12LgTysEL9tt
+p+tnKwYB5TbuIjHZjH7ULjmbGls236Iod5qSMqpfMib0w6ENRGQSQX3wEOmKzIntIqh8ljXv9JlN
+U19mrsNer9KMZWIPZ4YuDchcp2RhxtdyJ/eeAkBLb0qANMrnaIL8F9ssXT4x8rFpYYz2QiK0LHWs
+6pCZlAnU8LDA9atS/Ljry7YuyDHWXKxjum7F+u1kxmrI97bhpqrbxr50VCZepl26j2h/9zb2VBbR
+YbW6aTq0TPtu996jAVbknnr9b8gQR2s0/DrLpO9Fl6k3kfVjc4imsfr13JrjdFj1/r0ZMd27pit+
+xx4LD4oDN7sfgC8SgrLeeVsbiV/vSvfpInB65ydbCHl8VZ4x5qL7ki66m/7ATKYxv+8rjltLWDSs
+JGPlgl9b5R045+Q9E7T5iVJ1HxI398wHImnxp2MywUEWFXqOm8UW1S1upcyTcjWuz4MJC4Pefwd7
+MDjB9DtZeLaQrfu/AhNHK6EYDe8cZ6vo9E56fhW6JbMu1GLdNtU50uiiyB47jk+VbMperxmOsH0L
+wT0QcVbOtn+rvV36jGba5lHbhnyXP9ndO1r42BqunHdhsBKspsC3nsawq8brOQsc6KFOu3ppHjS0
+KbHQDp2LZZRYZXk4rHipsjvzjyt0DlakmnUy0E59s7eCZmmNP94We5K2R441iXfBIWjT124zBuHO
+3vaP9dlp4Bh1jrkh7Lkd5QfpfeyHov+XiVbKpIPESim8uv1TpaN5S5iXl/Mxkh2mL44u7ceJFMQC
+IlsQUEj/J8JBWDB8Yn1kYTNeWxNJdq5xf8/aYY1rYh3rSWsZmEvJRuBv6FWVjFt7kW3CQ2I+1qUS
+L7ldTWVszDR9dXVGt3YFJFfHi16HBx9r0p+Jk+eeTrP9gF9v7zyMaOEzWnZtDXrjPCHWVWdP7xmd
+P+tUuWZ5aC17bq8zX+17PPJ6+UeWEZn/VeJseHz2Gj6080wu74ZlVKLmmUWZrKtbfHc1vVmWKCcK
+WjHVNWOioS4eHLZhl8Ok1umQZzMjfo2Uj+trHJKKqbH8x9qu65FLnZMr9KhBv62awfShmwnFiak0
+T2zYW8E/5VrmSZplna+H0OfIMezc2EmwevqLPnggE8z75cnH9ra4LKXJaTwEC36Yw9C7pH99Tt8O
+GxonS2jr7h+VXu1PUzehHa9ODWlykP2vH2w0njF5xmy1YgT8vjTBGsQgcJnhe3kwXraz4De30zqS
+0sqg8ZKxDr1/zD08ph2oCM7D4padq07OlFmYxls/9E5oi3cEtTWpGR86N2ZqrddGyNE5CHiFZbKV
+TPnpI2cM44OC/m+Kl1z/VG+u+dYouT75QhBaKDaa7hCwHeInclxnddrwTr+i4WNtcc8j9Ey21DVp
+7mbCSvpwF+7J2Mr9tLyufEOlWvxZ6M1+YuV5BnLKtX0bq9L7nfa+0DFJj0XPn9nc99CP8lZH4bhN
+B2+N7B8Y98MeO1mFCQAkCllfWnUD9hN0l3flFF02pQo1CA8yi53/eB/1SPdwZE5cro0hxUN5Mx78
+WhTDYZ5KeT3jNsG4SXfyN3NbOgF2H2ZpMW3+dgzKHTVhuXiWoGLoxZzf5l7V8p2ZDIgElLBljv2y
+uDCCuXdXnd1bzJJZyPyth009Dt1OUiuyOfMSQ7vaPXidp6tksBrXut6zZspijIm8T+FoJkJdHjrq
+WFHAPgW1sGHDekKYS0iwzgtyWJwBLLsgNwh6PFx6ZdOdyc95QJxn2XDfdO7QENy37llMjMc4paF9
+QDQegkdr9tf8uAnV/gkGsqOk7GhWx43IPc4zpxle1Ki9v/gP05/p6qUP4kl1IBY+JE6G9q1rjLPf
+1JMsRezWGd2mNfeCezxahzoNOYf3tFDhSFAS3sJ63Yo7xDEH3tKcsmYMqmuH8EHnuRiVfYBTWb5U
+dW5o93ibKA89uiRJO8+hrTwof08cs6Aetuu9fmOvy2/jFj+LnB+f9tTvnF3FHJHMOBZOmt8ZA10J
+cjayr/ytzWo8LCP/Cvqt0DT0N/1ccCnfhn1nyVhXUdknoib2JWvhFNgNd/04HGkJ5Q9zcfbnaDbf
+fhNWsbzXcuX165YMAYppBz2nhQxnmeSQf5kcZqFzOVe8f1/oBAiQMugYdDkuwbYmzeLl7JxpiO2S
+FgPmJogj8U2cKWJLf1RwgVrbPTUK3zdOgyA7SE0REUscU4/dqkR145kt8+NQWxpu+IozUdJ0NFQv
+QuN7v4M3Fu8dIaXgIgQLxFpSojREAyWf9rpZboy0+vKG7My/2QYr6E7e2q1l4nkAqQ9kDnRrbHu1
+AVSv0JATsec8PIXn9Z+rWfgio1vmj1CBm3dNTbAmRvQYHOzhkL3WYT4Ytin3ABkQR0d1YNQ7XQ8D
+acqxpadeJ81gpoX1WXe6s5et/xGN8Mpr7fjeBdvXy4+/Nt7BcoplvKN1z8xLsRRpCEqj/y9a2/Kv
+Ybb629B9fZODj3QiG3D0Sdw6J3tTI6l5Wq6DvFfIPVCIMYPFR2k1mpHDKuvEOFiQY7q5TV9B1RME
+l4JuOSeJCqakqsuZW7EFPPoqhJkcd8Us3yKkR19FY+s3awzCJW6dTn91GETbaVWs4pF8YkehMvLh
+g7B9lXKZ3mrdW1FMrLarxLjoTlCOyYmkxeRDieWR3+3Ubvus4hIDGFoNuMfT5hqCKYztRcsvz1by
+1bWC5VEKClSY3ev841h5Rz5CETSkGWPNy5YvSEqXLe51SUrqJ025zj2aFTyrMft0MaZdB0QWvPrt
+cOIsLL4DuXkKa2mzu/g8jaWfSpQwZZpxAe0EWW7Au5rxHCSl45bIlvEMY34+INiKzzGZbVlusIwn
+kFI3XUi7k4lcPbxhMNX8rfUKVLwiW77vGjLPg1nzgbEW4902jSrI2kddMdYetd+OiQlqyTfL2BI9
+7BkHDLPxUP8Zaqv+oiBgj7tsxf7i2MZia0WM24vMTfXkmNWmaWRvTOE4PvohQa/BZLoJVX+/qmy8
+a6Xjvk4dlf4jbSdXJiPKqz+GzbrPvDft8+zXpNgowCs0YWXmvhWe6dnAN6V7JxhzFxd9l49fxdqf
+FYjUIHW8YeOmTovV1SJel4jzQpilYpzEMPHF9xG1VAU2l/E2dup3ZeHij08JmpNvuLyfLkkC2QQz
+rujQ+1upknHe81db2YiJBiY6Z6JGwbjC6zeuc9liPR0vi2M/anfTjy1gsoHWpay+UNRRhBi1/tUo
+i9u4mM9P8TzLsr/Yh7r76BkI80BHjS4TQWPAipkdFFFM04lW1O7XxW2hQGcnk3QmzuGNHzqOhVwK
+0B4FzXEI2aa5kG2m2KLItXrM5wyJRXUW2sdSboVBj7aID2rz5t71aHVz5StxP0wqf2CdBvPczO7k
+pWMresDTWaLEC+d5GETWwOnTgKbaG03F4dPKN8c7BFZDX3adSvsOzWTnJ+yV0LiiXvOZSld2YBLi
+LOINUq/u0SzgYVIxutzwQjFKTnkF2PLIUex9iMIddOoWxrrYBON3Yniuv8LBy148shiuky+Wb9vd
+mfLj4FmCmLE9Q6EutuLNzkovu8KSdbvvRhxjjrwKBDakeZyVvRfYHhPYdczJ3N2JflM7+BwVpp9u
+YKOvMg5g1tepasCBx8I32T37FuvT6oTqe5VKThc2niHXXcMonsytzxhLSu+LPt5G+Aum/KJ32bCn
+F1v2J2sbUfZoKYZrvuqMtCFwiiIxeI39ljw//AX824+z1fr/Blk0/kFMa/d1Dg9Uacw88PEmk7gM
+Mt1ia8i89HMMN5t9h8LNO04oEdKeoUdx10wsFyCP8bO7PWig+e004tAiFHu/plHW5wMpkSyvdq+j
+gz1k6NRpYKD+OI7C1Hd11HN4tmO7OTw+k3tVe8yc8Lyx+oYayq+fLKWrn63fgz8FenAEmYVrvc/7
+SFHkNbjuSF2gtskda2+TfLEy0nJ/dd/PnPYbpPg/OpubMXG7gWwvKMnPg/1/nJ3ZctxIlqZfJS3v
+UYN9GeuqCwCxMMSdFCXqBkZJTOz7jqefD8zqHgYYExiWVVubZamUHu5wP378nH8xZRQhs0TcR3IB
+nmmYaHISsKMy2EQmKbvdCbxE7Yh2HWAjq5cvAOUE5galO3yZ9ExQXjJZFYhWCtdwlHXiPqhLjgSF
+f+u2lgvltqACnbler/TPpcytyeZT+59yhtWQHcWR/qWrwX7ZmZWHT/0I4oWaVK9dwcHu2eGAK4NN
+C7CvQhuqUHnNGzFdDL2SxAMfrgKrEQ/CY2wNPkC2GYCYa7gN7bqyCwm4XvZcaWznXqnz60wMB2Uf
+JYW4zYShUXcE1zJ2jCZvAhXUBCVBrICoJyTdIc7of0pzJxFMnWkbaI52+8HSUvoNaajXRCCZYi8m
+KRAd0Mmnvd0pMeeJj+BV4JgaTafx0ZlXcR/iZlYrlMevIJVRPciGWDfwlanA51KWoFrBvRE0m64w
+EmWLSxAl7ahVqu95JPevfcYdhCIXHWc3asbywbAkIbkE6Bt+iYgWqWP086uKHjM/ArhM6NsGudd3
+dEiFL7AWaWMbUx+9qIHav9LjY9QqrmPLpW6VmDeVmlIQxt1w4j2A/i1d18zUqm/w4ArtS6Dl4VdA
+B01DwtUVLZCZUAAzMkBliZ2qAIG19ymp1ZeI+NRXHUDz1jEpd0173BGLMLih1zrIjyAspp8kXh14
++MFQvfqp8WOoIJsKCS7jQqCV/4LKd/998JWh3dGTN3PX4lUMxqIVUIfkfU1x2zcm4dlCEg3ZLlO3
+roM2tgLQYIFJcp3nDzVtfIBVYij+FIBHZO4Uxpq3ARxiAY3iaZq6ag1GiE73fADUdkSsUM7MrnRM
+7hSdDNsAaUanz3ps8tK8m1qlF2lWTkzTE4pyB9K2v5q6eqL8NhEZXBoj7b0PaLqlPyTFJTVNM34K
+kUdQ3DbPK1R/QAGSZMbpSK241gg5lRTz6DcBhkhAxpqmAZciBDEtBoFtQ/8WGce4mAxvX1JbDhEp
+IsF1clGmZUgLLtO3yI4VaDMhpWZuqdzH3E2KTGtOBUaOZlw18VzOqk6maaUI/gPJY99tAhRUD4jJ
+SFRYxEwQeBzXbN9+EFFVKKN09Ox4JLzTR6Tgc4EqOI9pACcG2K4pkl60WI4RtsyQ0URttYsHN1U6
+9XcwZcRAIcSJxhaUlBqtFYEBtluC9X2VlMlXgIlKseFVPzx1fpAGFwKJN72NsFDuDF9GYWuQCnZk
+o2eNRNdQkq56kpuXMurMB+SCLcBHOBV5m8SaoHROitxcV2Yo/why2dDcKBrEi0nz8+KmsvLqrh8z
+TQS7YYJgz+fUPvWUuHJUsQUVRkYuFOBz9PpbFiS8cyNkQQnygDg9l8q4ekc4oIcExwxIrpIlggD4
+TWhvCVNT5yhRDMaxiFA06su3e0BtrM7Oxby5IjTSJwZH5H2HiZHsR5RVBxfAA+1BYD7l8wg/rnZL
+AG/lAc8U8S9/yExlJwrU+BzKBBJXiajjHklwEcyN1Cs8PxEeb36nvlz3JNSx/4TGbnc3BlXHDVPo
+/kvZjONfvgHMbhtXVvzT4pKuNjoHi05EGZklEjSRAS50JOV02PE0u9VA4NzAYiDx4+kd/6JGn73k
+hRH2toQ0/BNdXGo0fd2MV3neWy9ov4DmoWOslXQBpgjIsiKYv5MonX6GvK2YlZSAaWtTo1OdKIy0
+Zm7naZ0jhkbyI0TbFdMeacomV6VSR9cznDkddWcBFs3yKQV8Iop8fJ+23aHuR7mxRUPuNc6BKgSg
+jCK/2piFBeyauwU7JdNXJ9+hIVte4zomjq4h6uKl5meYDYRSn+Q78sf4W5kTlUnigB61ckHoB/CY
+/gJuGt3Ca23AGYZyKmxAhHu3DfEpcEjzJZ5pYd4+yGDFvxb0bh41nT6Cyu14meaJch8liprdlVHf
+IrVjhd24l81ueKiDukYGdaoUZICKpPF2Y65E922h1FSe+hHSyihOVBvJXRBNnWQzNje8kgR9E6o5
+z8WhLvXKlRtOzcZvwoH4aPVVdpGpg9xCx+1V06K2qhEfNKXhjwPoPL+KcCoEB621PNh4kTRGP80c
+4MQOiYzOu+p44wDowqX+fgA396ryNOBTS7OYS+ZTa/fUADjZCAIGeEMjJj/7avAePTL934hCzWXW
+cehVAgE54AYqjvIMHwSkRwo96LkMBy7yqpGsXZn0MV1WGELpfgDfec9bpcDUOJJr4PMa5KBemkrJ
+qROYiHYsy0kCwoQiiet50GTIIw3jlto02aYGK+BLVAG/c0PsJU2aBy3XE+Aa5Ukey/DnYILsdZLE
+IMuF/VeVTima3m0WqeCMyPxJcmm7BvE2V1L9QUhlgDwtoiG3tSA1k1OaXtvb0N9AMxWGmD/GRjj+
+MFtdetBpaIkbyZtEwQ0si+YEvlB+6MRVSmqaCEp2J5mNeY9zY/4sCrUGYCnPfdkhHlI+xBkuu0Q8
+WsjgNVfKC3ryAD6B46YXFcSrbiOh+944/B7x0YPzfJimPgcjQgH1dx2H/rNMNQ1EbTmkIZ1Ytpgt
+K6kwghTsZtwlADfAAUDgv3nZGKguiKSJNrxhFjsQ9vxNBWxdzr1H943kGEi+3SropG38qjGum0gT
+BkJ1ImnU/qLoe1XE4aPlxdYtbUMqLr3nTcJc4Bpy29QFqC1DqJLuj0S2F5IGnhoyKEu7ySE72BCr
+vJ96QKliW1tlpLojWAgLnFczHtRJT1NEYOcbJhLLJNyoXUBZNgHRoWyk1DRu5nenRlBpp4s6r/3K
+8dqO2h76TfJl3U3qVz8mitkIXIa4D/Es2QIyJJ1BvLn6q4fwdxmWaSO7XSXSLw9NWAWsNBvS0ZrS
+T+xuGoXvEBD5xsOIJLoZTtKjMhilRyEXvhClMVI0HHRyGeJNnFl3TexNms1jPSBp8CSJAyHKwtc+
+VKavXti1EoDwuc6MGFz7oka1UjpTTx3GmXCg8GZdwZGGGzWj23QsfAH4LM9qe1QM6Qq6WHVtWj6A
+Y0NKyex91WgwirKKfiDS056X65FW7zTEvbcFKKr6+0SqrTshCwJU5C069l+UrqebQTu8dj3Cfg3F
+grv+Qo5US7DrBh/lJqsE3qINbfcNj9UsgoYY5fmdPErAAsCM1ZBoPJF+Fxy5dlMOwVi4lThIqmNO
+UKCdQWzbl07phX7Tt5UUba3AijlTgaWTaQFAnYDP+X7kSpQEw9+DT2Fm006C1DlpDgGexGyMgVxY
+pRwe0B+z0qu+C81bLYyT0lW6KYGmlYOxu4HyQ1O7hafAYpRK+luKM6nejsHkDe44ULLa+gGJsSux
+ipU7EcTJLSK6VCxsUggSVSHZuw9Lg1yixPpCAOjZkYSMnNXXJBswUw/hfdznzdho7mwDcIUhQvMd
+zKxKEzKv9atSo+/sKNNYAC02iwgtRtWTQN4SuWyBRsq15ElAXgYqqSDxemDZbgJ/6HfuFePXPJGi
+GxVUujgDBqkdU401eIjmxV+m1/H4o65LrZDqIRlXpNGwaYxE/EHG1zcOT5SMFLSrzBupUEpp56nm
+9MMXevEKimknfoFMpvzuNUmZizMJ8Ey8hPwLCsPBRH9UzG4gFygSGH6lDWizY3DgAALiRBlDJN4F
+mB7ETq6KfLBOFLXHtq5oK5etTns3FmvrYhT8pt/1fO+HiRt82KtUMy4iqid3jdJRQ0LjrL0EEMEt
+mYM+uSY74LpIxDrv7KmmiLEzw7KigCXDJnigJpmQguSdDF4qi807Pc0Bw3Ld+DdlApLY7ljlbyDU
+u5v5oQcUR0zggwlCXt/Ck/R+xQUVZKdTBl4Y6mAmwESwVHm2gpHD7BfBaIDPSihXpBHCuhvU8NRf
+CcU2lGHlIngM1Kzh5Sta5TM6cHpCkS1LfvlSWYGC8GJKSrC5kwJMelY8SjkIAIIs+AtVQ/PYDmsM
+yV1O8fjDGvWpI49XwIL0lGo1UDikjeCk1eReDeEyOHSh9J+aWRl33EG1ss09nz43W7faiI1fkeJX
+hVI4c3Qet3JEcWcTDQ1lbM2cAEYGZnozY1BHNxjK4YrMJav1vU9He9wEqmSWSMuVwlXdcWvu4zxX
+LkxqIrJtIjDPEz4fCummhgz4u/LE6UYPzaSxe4AV7b6ZqL/dwj3z0DYVjJy1CVQt3+Di1RiXU6Mn
+xRPvAuFJsCiM0gYqRPD5ekSW2/SF9JxkkyqSA/I8+mX5USfYPL/AKHoSpKldUYIa/2bgGGrRcrEy
+jSChUBoDZ+tThAcAFI5fQZd2+G1YUJe2SgGXx87bER/a84zrWUvgvbgB5gFIfyLXICJyRhVyQe5O
+pFGzSoA/NIRV+YfQ5p7dxmW7M+J+uBWEBLFXwfP5dE3rJnEr7c4PvyR8z8Pj0wod30TGli7YMdca
+DmvVAFtJbahXPIcSoMztXgQlqMDuLG7oUVj2pKn+l2pIgAWfH3zpKoa5HKPLokjXUdFn/ZTj0fEJ
+0zVad5kde1y5m0ryOEgploCbmFdFCKyJKpoPM5v+eciLCo7oJs5Am5DEUPAu9eb7yi9acs+Xv2jB
+6Afw7JVVyufwc5U4TAvTjXxLdkiVnkpSYQIPvfAKNtomaXrNzSJz3GUZFQC594GGj5QcwJNYKyu1
+lAB4+1kYGM6qt5KiL62KyoEI3ao8ibPUp9wKd84H2JFQjYzrXM/d86uw1IaYR5sVPoxZ3RRMzELx
+q+jVDIt3kCDAgc2famgowOOgS5EWDtrwE5NfeUVR5NQ2NGgI6Nq8ByVtIX0BQLLO45o+PHRA+VYH
+ZkKaK4HFbcThAvSctSsyuNu5on/O/mG2N9RBGuvzDmR8abEDzRwGIvgX2n1eRt9sLv+GxddU5S64
+oBJEa/v80n6c6PF4i/016gLElKKAeJiJ/SyqOl6NjPsFPIYCVrxs3NIsy3tLS/zt+ZE/7mxGRnxG
+Q9TYwI9q/mXvJJ/qUculUGVn45AkHnywrVy8Rf5JrZa39cQkkG0DI4MizvEoDB0qVsmJVnqpOWgz
+9M1MpQNN+f7BAG+9sm8+ngvUtwkfdI9pCPI1j4czVcuzUoGdWjXcZg2lYYeK4zfINdL+/PJ9PBMq
+OhsGTuS0e9D3nZf33fJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGICQY81AR1MaLE
+C7tMW858EQj9L2+k0GU10VxJrIL4toILuKIzcmqHYJ1gQoQwkX9aqov3OEKodG6JxlXLe8Wairpw
+C6Pusv9gK2JBhCa8pKp8tcXMQsDkZBSs5VQaJVjnxgJzNJQro5xaP+TKJcBTuKCAiT/+Yr0BTjcO
+GKUBIaBDLbSmfRTI1WagxkoHn1rY+S1yajNaogV6gLSMaLY4YXpeaf5ozltE6qy7PkMYxBl83xA2
+bUJSsxJJliJF80mzFENkFVVUI5Y2JbnVJuTAMI8ryU9fQhp64ENjoCtTcWnW2WxHLDTd0/kpnghf
+XAyIkEnESozf5OM1nTxzUjRAojaaAjA6JcPb1SP1ViWNtmXimVQhFHWnKgAeV6Z74msiAku3GU0m
+gou6SFQ6OcwDs+Sk115rPssQryPuYqnbY1bWbn340ZvzUz1xGuaEDGsWReJKWoaWurcaMHYJvSzg
+oa7WK9q2FZQ1R/ITX9GQUXTTJVSKkH5eTAu5Gj/K5jPnybE0gHqP62in1LUkbqVmfktINZSoQGoj
+a2V+J0fmIoDChlkgeunHn9ID9z80uIHRLOnE77CtYuo7sRfejDhj/CS0g3XtYXJ6K4H0xClhOJHk
+Aq1r4G3z73oXSCsY7wYEU9Y1LoZDnYndRh8E4c6igLIS0E5MEfU/Bf8STsrsFH48VJmI8tRrKVOE
++ucKFciyQavg3Yb0j+4KUMrfY8lakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eL
+kBQ+vUctIB8WJhu43iBZfjzBCM455SQm6KEH5FoNMKa+1Nbk3j6ehNlwQcRjVUPwTV8qAoqdiYlH
+iQ2MgH7ATdzHwPmCqFvJxE6MMkvj8R+CJwr6i+jZQldJM82iF20AES2kTAOsE+gru/7EKNgZIi2P
+hKIsIn52vGKDGHQD2TsYCzAj6U2Ftk7u5pXQBCvb/NRAJJSI2YvcceyE44FoKKl+RvnUnnpRBbYi
+Vw54xRXB4Y9B8c1RFLks3OHJfhazkclX+iGjxsl04wOxMxw3YQ38oxgg/W8gWBfj82e3HDaFeDWC
+UNdmZ5VF2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2vXo8JnV/FJS9xq6RjmATG
+JV4y9dY02sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuXX+Sme
+2CBMERczLhkk/z+8vJHHh7TCQo5BFkLczWku5M30+f2OJA91MU2Zo6610Bm2ah2KO5wDu01E79Yc
+4DvVUTyumFd+TAuoRGncJAZXJYz4xdn19AC1qVk9U8HZDqA2oiyQZvoHEPvWzupNKLixP9DBq5t0
+d34ZT3w5si3kAjWsCiVKKcc7pQvFsCzxK7FzXfW/wwDSvsPMU+ttkqPaYesxiKLt+SE/Xiv4UrCU
+cyOHy3N5Zwe9nFk9Jtq2p2TTTgOU9SMRaEheCjKv81sPAq9k52VAOff8wCe2jImqp8kBNDl/S6lZ
+bC/JX5EbtLugEa4jTU3tuij6T6exTM9C9lKGb2UBJDte0bwYoPKb4L6sxMx20Bo9NN6EzOAoJEmq
+rWzQU1uHq5li4LyiYOaOR2sVHLGAqfIsNYdwh7QX0LokFFRH84zoCjnC8UqjZrdTyK0fP7+cBsuI
+2YjJ9tHmrfUuEzFCSte+rgH+B8t0KyH5tMmRVFx5op7aoIbMk5gUUuOlukiZkXwqcLjlU6V6bNg1
+eIUfyoCoJ/Dbcg9NpN6fn9XH9IO4zEsanVtePYTq41lNqKnkMARh96SBBjRS9WlJ6nRngXohlLWy
+JU/Ojpf+nIHw/83Fex91KqChqDSg4uLBI8AdmKZJnVtDso9TTazvJ9g/a9WwE4PORim8fVhR7vHF
+7TDJQJWLCa7NiGsbfSpoXCNY+BxtGz9N3U+vJ9AE5Ep5q3I1KIsAk/YxTFukdaBFNRCMnHAayuQ7
+/C+jHGCJj7289rJ780Y5rgnPtim8rkzWlRRi8QmH1Ap8nfaEbXH20k3YNeJVP6AiZoVNtvdM2kdS
+WNa7AHQkPoACLSrbHw2agik6eSv790TQsRA/Ia4rOgF+mWMGPehMHKJy8DWVv8FMFxifj1r8+VU+
+Ped3w8zb+t1hjPQm6UQPBxxvmgbdrtpZYAu7SFVzUsVqbtjNwoXY02MzE1Rri4R2NOLlJs48kbji
+VXVqf/HFUYmmrkR4WBzZHEE5z1CZsg9+3FFBrL4qVRkDCxP9Q1fzTjs/+VNLTAGcC4XrczZ2O567
+qk/4UyDNaBuaUqK9BovIGNN+ZVYnAgNpG+0QkzcR33Ke9bsVBh2sJkPLYwEZvfLZi3x6iaXsv2C+
+vZYPnJwQD69ZpRx8r7hYQBSSAQlIZB0VRuKuV4EKpFkTrGQdJ0eBWELgof5BED+eENwmr5CxTsUq
+2A/NLVJFauvy3IIFff77nFo5LHy4Xym+U4BY5PIVGb4JsZWBhEbcYoMXuUbeGXcFrOGH/2QoxJ+t
+ObvGB/x4Tmk91I0l8JGKoSluTK8J6HKaQHlBFPXR1/9gMByvKMORZ0vLpziSNgEK0WS9HU2Ybds2
+mF+CEne7Jkm354c69a3I07gFkWTmml/MCxyTqtcp5RvcItI75CzMa93szJVYNf9bloET2W5jLhFx
+Qyz1mLOk08dwYt9lNdhJuwUvekFw7J8CqlTbooXxc35ap3YGBT9giiCW6GMtrj+lgTie6rTP0NTK
+nGiCIldFGIWR3AcrH+vj3CiZqGwKLj7KGcu59apkJTW46plRXe0Cr7zLzeoAXE7fi1XYrUzsxGgm
+2stYKFjkEjRuj/dh3yoCjuO02LVe0A9+agmP2DtB35Ha6RaZPm8l6fy4P6iuS5jnkEfIsF0XZzkU
+dUD7Qg6xnT77cyFNI3U3ub8//7lOjoLTIceYegZ9z+NZCUKnDxMKTaDaUGFVO7+6Bsa55qt0Yu3m
+XIhmCy8ECs/zn78LtJTsYUiZYOuzbuxuJcmbYRMwfw9q2uvf5NJL/vr0tNiCVJpkFOvp8iympehJ
+FfoB7wJUxsjYU/l3mBmf9KmmusCjQCUsEdC5PJZ5pSwgOJFNHW+8XEFJt0Y/hgqzmjnAMSCpiXyz
+ldP88WsR1zUsOHlYkmIum4JlV8DC6SwwfUnZXhpT5F2Jba/0n47u0CpEA58ag+gum4vobqZgfgCB
+xKhjNPkmjdPXaYabVXrkfXZCuiLxDDdE3skyDuaLQ4XabyW0ImREqRzD5zQXik3cBJ+u0TMK71PS
+idkwgQkdbz/AoCC+DSSHq7hXSjvOTORw+rGPlauuLYDuRbUFkA6uPIcftctytVf24cPxC+awwbOc
+CELX8fgXJDx3ZtIvCKYqAS8TVkpwqYZa+tn7n+sEU2M2I0FRJzQeDyMiEd+qcy0PapjpWkr/mgE0
+3p8/W3OufXSlUPacLUPmfrg1/9/xIFWY1VVT6z9aeMJFLtzp4T4VjW0uyTauNyQ4EL/wbFjZkx9K
+DPOoEI6o7aqzaNDiG4InRLF30H8M7cEKzMu028i55yR65E7T9/MTXA5FAVmkA6ExOQOrC3URPEK0
+JSbgoTCD9cG/RvHEc9o+7b4IaK5vzNQDUMZt6p4fdLlD3galz09fUybFWNb3IpSHtD4fAhsNj/gO
+jkCymczRXBlleTv/PYpJzoudJ4nv4rzRiPaRBGZqAVSnHmCJMNdjUVJy4JavgSZODDYbhsBFo+st
+UtlbbJQ8x6pMmxGJgcdYfWHec6FxYw6N98mNz7yOhlpsfE33PGMqGQp+Yg+RIfV2CKx8NmWbR6H8
+gz8GxTUiySIutq0UgL5HoZEgo+16Osc03CZj+9mdQIcWJgRxipITRZLjZYN1MEWaDkHRC4uCV2wd
+oLKYfDby0v45GmVxinmQoAsw8HhEFNSz0c56FmPp+fxMPm4AyhHIs5pIu1BUMhZfZUiERvYn5NQw
+LtJ/SwOaDgkk3VlbwlizS3rbuu/DEgkGg1EioGVCk0laTKhHJ0EdO1pZdNJRkiFnFCBsG/VlJaTl
+NQDcfNvobbtHAFZ2hjCSL1DKTVZi44dTzBsZ3xMJBJc58zgXM05LVNbTwPhuhbAASqQWnUGP17Kp
+k4OA8mBNadvo4nIQpF+QEvaf47FMrY1SKtohw6/O2n3q682oGJWHEH0UBsIDZREr2iQZrEAfehtD
+vAD0cmF+RTsFGqkaBQ/nh1rM6O+hyHKxa6WPLS5tvBTPCOOM5NbWUwjgNRN020SQPhck3kah//M2
+GZnLcXGwpjxHSioLYNsEWHFUsKIvFXFa69otIXx/D0OLgeYj1XddW6wb2jkdTTQBKH2nVftoKMdL
+lOTaa631tV3Agxl216BBxoTD1ccYqUCWbv0LDe0Wh0+6dtAXh/Dt5+j0A+YjSEL8oR5pZjIyeshF
+5OOQ2LUaJ18GJA22Ify2FVPuN2zYuzP4NhZQOZmNQwOf3HgRutQU+eeR7xhE1WMLwQf5LGU3efEe
+2eK9llc/2rD/0UpY6KjeQ6a13wfa0CNZX9nEF2jTr9Up5k+6+EFc5CYXuiUDpVsihqBZwMw1kckX
+pcpSXlM0YONDVtPqvEU/M4u3cTil8j26cOGvKUSRegWxdGLxZytbkboZoAkE+I4XxKsmuUUCtLOB
+h6Hjq+e5C4a4cMsgStxPn6Gjoeaf8u6NVUqjHIzztgsaXbiI2RCXJKPt508qo1icUdBs8114PEoF
+tdXLEs5QO/nBVrYGYVvI6E39B3PhWSXRB6QToS/2kYXTQoL8Gvsoj6IfMKPra6ET9Pvzo5zaHMA9
+OBLUR2jgLvITUBd+0aUwq+NQinZdWgQGrBDJ3/iq31yKBcoOclsUB6WLuq+fH5o7CmQZgI+PBwV6
+dSb1KfRCheLc1SBp/QveCMIFdG/tNkVZDvk0Xb8l9q/hAz+GWsDzvLeALJFMExKOP6DQ098RqggN
+D1Mtr6I4y/eBVa+1XD4urUkbkE8nmiIPvGW9PhDLTheLdLSh5t2LuvbSqeajN+mHDhUXdFubvaFW
+n8O2EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYMF3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6On855x3
+ynGYMaW5LE4GQtynRXi8qCBoIJTFDG3qgLKVwYs2eRGUG/yOIDw01Vrl4cTyMp5KKwRcMgDWxc4d
+pclTfRlNHISQY2fIcn1vpa3gDkVc7CF8PiL4V+zRJF7zAfwYz+a+IFgl2gDsnmXFPMBzEII0OosI
+GwlOLOaCG6u1tS3Q2VqJZyeH4t0OGRRNQ27t4zVFTqg3UgGtnCyhP+8EaBzEN2HRoZPWzIIf57/g
+h2OB9R6gCl1l1849+8WlLQxQqE0NIoY2IOEhVMhcFTH+aedH+bBPZsA6QxBAASvyuDyek+WBO5uQ
+okIvLzXrzdgHUeYmeqD9hiJmIolWRGt2wx+WcTHkYhmVBB6gibGBA+OzcCU1fo0MqXHTMulWJvdh
+Cd/Q+EAdSLDoX+uLqyGYxkBEGQlJ0bFsL5AsSR0oQtnKtvg4CqUNuvH0OrlVkXA/XkLERbvIKCEr
+W3GtbcqgmxBu0qeV3Hf+t7w/0KQvHCyOFptcNhEkPR4FgpaE9ROIl9bzxPvB6vBO8tuLUTE6Gx+i
+4b7L1zpEH4ZkxXi7zOjtGby9fPYlkqEMSg2fIqwryR2QMdccK2+EWwmBpRvLbGbZurHZnN+R8+c/
+mihvMzK1GX7IoGAujyeaDH3biTF+UM02tFun3+Q75Up2g5Vhls1MYsbxOItrh4Sx1cuEcQr3x1Pm
+YsFh/z7cvpyfzNuT5NxslOPZDHodQABkFHkHsMDG0mMjXaP24mKD4mgbum/2l8o+oKJvj9/Oj718
+f36Y4bxx3+VfvKATtZqdtYS96vQOWHj7l3FlHD57tS5Xcj7w78YZkgxZiIxx1DtvV8KufwLXfPBW
+PtjyhlmOsrhhYOVHiTDPZtpiEeKgH+hkTrFylj88lZajzGfi3VyUsJLUaP5eV+XmZ+w8vmq7l6eH
+NQPNN4/fc9tiEXbBMyejFDJMuQF+6iBDYD+huXkzOcZXZDwvVnbCvJfPDbcIuRbGlYQPhuudn2i/
+2r8y+/CX8/C0MsyJgPH+6C7f52md1QaKoPOsEMJyqBc5WAc5pqu7L7vn2v2KZNDaB1sJF0seVGMq
+hRXMY3YubzsOWLj5Ntm/vl4H9m3tvvAssNHcXLlY1r7fEmOvoNUhJ/P3G52f01bcYYy1qbfBdXjh
+2cmutVcWdr7rz3w/eRFFYhUqJSzDeZKBk/If1Ub400GjbWU556N6bqBFyFAFHIkCmpe2lKHw3Xkw
+IvKqPXSxsTantb2yCBqmEdVmNh80U/veevsQyeRCxvMsi1EkWes5v5Xazs1rETwiU5A1dMf+XsDk
+BrsG19hiBed8Dd3Q/QvuPYFYtP9am+Vb+nlu4EU86f0US4GSgZUH+VA/5dflQfnp3VJxRH27eBkf
+s0N4o9xqjys7Zm15FwHGb4ZQz+cdo7BnEGBgf3Z7sjzHsw2n2GQb3zUd01mDbn+otyzip7yINKOc
+xUk9Hwx6kNtwL7mPqTPZr55dsLz5VrZX7/FTAYCeIGD+mTQHz+Y4YtexmWbivGXxIt5InA/Ftcgc
+VMf6kjo4+d3Vtwhb76qdemldrKzyqbj6fuzFKiMrMyb0SMhV3H6jPyXbYNtvRzfe1hfyfq1sduqT
+0lKgbwGujr744kEQoVcdjVVR2xUi8KIECReVKnV8bbPKjaa781NbBgLSfkqf1DsUBbA/uIXjVdWb
+UPaCRJ0cQWmULTJJiCtLVYjV2jitxJw5prw/IgwFwpNeP1Qk00Ae63ioxJT1Qe4w0PIgq3/JrSwD
+F6wkKzF0uXrzKCpNLF4DM2l2WVpRMavGFhLVowZy7g3ak8ah6pLaEUc5vYmKNP0Ko0m6/fQqUsTh
+WUXSTh9Un/fPu2wiRy+hqgssG/GdLDbIsxJT1Sa9Q7U+WduLy5ccE+QNR+0GQL4GC2txDjDlqSbL
+EEbHyLrMcpDAqL+iAYeUUqXlSvyYSF2D7mtqIF9LcbsWbCQS09skGr0nrcmaHB2BrusuylSX7wCU
+lFgNVWFh2oWIfdL5dfmQfNN2pT2mS1SbgIbRvjpeGBUvjawxDLwspa7DekRI/JFoiHRt4A41dq+o
+QWvdEG0xOu1eKpqPv/za8k1XokE4baNC0deI7sv8cv5JCvuDDheKr9gZHf8kAa2mUJSKwcFpIUZv
+WJFtPCnSZ2r/aBL0RWcexkLm2g27YSW1/XjYFD4aCDVKwhTplcXthKCr0I+wRJyqMX+U4De+NmgQ
+3SC8uQYUPTHSzKjR6cRTVQDOczxJv56d7yx5QlUv0kFTwHly8zFCNJRW1ev5j/zxXFPFpOyFegCc
+DXHZlfcNcUhzFK0cA0WcTVMN+DyV/koH5cMjh88GuVIBlUkPmStgnvG7I+bTn1Ciqe0cTwg8e8BY
+1I5SX7HZUOkhbKd8YyRespHFSL2ioZ+8aukorUSwj0eP3wD0ZmYtgTRbFtvGqev9vOR0mUg66xs/
+94QHNRaBBVoNkjgXqBij6PLp1Z3jGEQf0D4SxfrjeadakCp54sG3r3OEcEY13qapoew/Pwr45rlf
+AOwAwuzxKH7f0Z4aow61F2w9EURCbBhP7U+vnyoqTESisEa78u0bv/uG8ajERgM2xAn7IrtK1Fpy
+QwERmh4RUTdtB2/72VnNsA1AlTN4eL4Tjmclj2KdYEmLTPwU+ocoF6YLD2uWlUfCx4BiyhrUTSZF
+1+0D7hDyL1290awdbGIzVxSRwUnQat+LpiYA2tB6BGKHurvwhPrfqKz/9Wv43/5rfvv37Vn/67/4
+5185mk8zcmzxj/+6Cn9VfPu/mv+a/9r//M+O/9K/brrXqmmr1z+uXor6j22b/X5pwjxb/p2jfwUj
+/fuXuC/Ny9E/bLImbMa79rUa71/rNmnehuM3z//L/98//OP17d/yOBav//zz5XfK6oR1U4W/mj//
+/UcXv//55/z13n32eYB//+n1S8pf3L7+fsW57Y//9999fambf/4pqMY/yKlmBNGMfYV8xPHuX//+
+I/MfUEQBnhE0OWPqTCzI8qoJ+GuS9g+NmhwgKpBpFlwOHmUctb//TP8HNsoaoYCGFLQraPr/vRBH
+H+//fsw/sja9zUN8zP75JzBBNuS7FGmGGHFTzvxB/oyEYt5q7w6IOlYTPs+UGIdKwnIzlvQejd1O
+joIvfdf15W+U7i3jGnrMrozKS8/UdhM+ZZJSf0HNEYFPDcVduHNukjxXRr/lNroQffNLWg7bLM/v
+p6i5rLJwg8b1N5TVf1VDzu1n4pIQF6+1GR1SL3A7Ib3rC6t0dD9zNKTmBRk/NKWqXK/utwXca9Hq
+n2Vd3+HI/RRO5a7vzFuEmi4bH6HTVpncvLVu20K7CwZcpnE77fp0l3mKCNpDuNSxUPblcJsCocJU
+VnzVYu/BF5Q93CMZ3X5x18jWc4961RhJB5ndo7TqQykhNadF1F3VXW2Ee4Rf97KXXLXJcIEs3zbK
+vINRYuxc68YOS4VnpJtQVEY0mpU55Fq+HV/74qrRH+XYAHDH66h9ShoDvd0cKdCp2mWIRzZNSSfc
+cJAY26cR/52lXlf+bN+nxFvk6b5mYvDFq/ocHVZ0gjO3xr8x4lZSgx8Kvuy6esij/8PemS3HjZzd
+9lX8AuiDebgFUFWcKc4UbxAUKWGeMgEkgKc/C9XdtsS2/dv9u318InzT0RGSWKwqAJm5v733KuOt
+MVbTJDNeHdw70M18pB+YaiT1bVkeYNFu+eCIor/TtKfWSJohzbZnnt1HxpCd2r7OrsiL2/XVB8Gb
+GBa9p+2p3Ts3afEsmyW2uvV0ZY8reUnbOGuoQNbT205XkVAwKud97rQHwdfpXaXMhmRKyTfnfH+h
+zmu69IIqcq1dKfS45r2OHq2vItvpk3XoTHFiTVrU9J+FOhOzgtdyPS7v1DVFurods8dsuFvKbxiS
+960n9p71kkkwOMWZVt2aWdQPwcmqyUPpJmfu4O85yuwAW3pYAIIo6+c706t3vl58hr55SMrqBMP2
+xZz0l1Nqx3YBkZ56/71M/Osac98knFO2HU9l1n0Cc3KLwwpcMYAc+J15wDc4JNDtnbgamiuZZJdJ
+OhwMyznAXgCN28HslP4pd9Qpxft7KkVP/UrQkSCuXHs6jEG178rkkJsLbYvQtWQ98MXp1+aYXeYz
+PJOy5CLV/XMVZDs+gIfOHM7KFgDQ6voF5bhztCgqM8xqtyzWe+4X+8xJTSoCxc4I5ovaXk/6QD/A
+LKZnLenBxVJvBgH7urKsMzORB5vEVE3NVeSr7LnPzcvUDk4SAwZa1XYnWVVnBya5YGkrCOap9djk
+43Oqxidr8E26zLUNC+/ciqz2qTILdqnfny96d3CKhLsvf1p60zudg/HUGJ23PpNc3tLdke97hX5V
+sFMrN365zh7Kxx0ATvDOH5a31tHY3+R3PHS8CFzbI0WqNODbEBlKqDTjCLImtRPvic7kft0pp/RB
+nvgAjV+03PanQ72qE18u44H+xrdgGuQOHmdHz2JQnTYdtYiUXb91Sa+Fpj4VV3XvvzdreT8rZKG6
+L8GDQLyP7bE4bbU+3yNu0y6vFfUXE3DpPlHDdFt06z2iBz2UZX8+Lzh3TPrRenriefLsRWruVAP8
+2i1jJ3i2nJv2saRNvyLzN/hNXIAq8cycecrCre/UVK0NLZXHAw9RuZO8QXoJPplq2svaneImML6V
+01CcVqV1OuXrrvMSSeNbjx8pOUlnVnalXRJt3VFjTagCkl7baDt7De6EZpyTSpPhWNjnjqKQlxZZ
+3HWzGTNb+QyB67J0FdxJ56SQGs2uc9w267fA6gAwFxPF4L0b43PcD8363hBC65zgNAic03FqPrnQ
+CcO8au6Unp+4ij63WtxrfnJwm+QJiOUeUQooD62qrX5iVEVE4fuV9MbLdBIiqrWZ7reFGfxoH2g4
+PAF4QZud4b/Bhb2gxoTee/9LlRs3aV5eptV0A4QFnBQdaM362TEG2GNArXduml3DGMFp11kBju2B
+5vhJZMYuKPWAzCig11hU2p3n1ZfO2tk/byn/uwP6bgeEjXFrY/s/v24tfrMFus3bPx2YPr9//dN7
++6e7sfp+//TLv/51ExT8xAQTywkeF+pfcC7+eRPkeD+x4wi2kw0bGXQh9ke/boJM7ydstPw7BAcm
+rMTk/7IJsqyfcONQmqeThcGdw7Ho19/0H9gEbXumHzdBLgEoBu8ehz22XbRA/7gJ4g+p1sNPTrk3
+PhTY6tfWqABMEQ22UOM/wUSlEh7Egy3JHVJWvLLqL76QlCDrfq0zOx9AEIo7M4CAEsIrIMMITS8V
+r/RVauLTmki9lBw4GCtnu7W2luw1LxGu7FMFqUd79KUOPDpyJkfllzpMJqc6oWa4UnZoVGIqqMPU
+Jqm9NzBlEz9yTLo4JiCaTpO8qKZZQd7BgRPnukroQ7SpaoaB3egjer5IYbfYTdN4lw6K8ZWNxUjE
+XpNCEKM4REFg6ZMpliLgJ+bBIC78YoRIosPN+FTVlvq21kQGIpaA/IkWR88PV+ItBsWEbeBHnM71
+M6FbQxKX0kuvF3LeBctz4L7pOA36fV1kJXnnKg/ucswbj0krxGOeDO0dsNUWBhxloqdIc9sCR7f0
+XeEa/bXH2PuSTx1VpNDh6Y6GKBN6GEXzUpSifUiovNeiGtzqF2tF+gAfLLJvdNALUAgUFG9kqW2+
+TOYZgg6wL+qY4YDPG0orf82tzKYY1dOT995qxM2qW527q/xFG3cw5GoCO3PeffLTjRnUs0xMVCPa
+yUXpq8Akn94ujzCTS1pEA9ooIs0tRm8r+i6zcy0nFsjbNy0IssFES6UHeZVGWNOME97aXQGowd87
+s24+dUYZPLRzm7H5rtyNnDS5F/qCoyfM5nk8X9xloI04pdoz8sQg7lxSwA1tqFpxnQ92eqFLoVgg
+kxG4RC+elmDMLxK43GGauRWt8fZwmRd4gEJrmahnyCrHHkJtoGk87CrHryODTP8FORF2lmDJEH0H
+t06rCCqI9paK2r9t2wTEsBgz/VOTL+tNE+Cq3/VqHqYTDajZO+lE46HWxxaISQ60J5Qe116Eqg6x
+DPq2c0ntKbw3szXAlU+9egQNLz9rfelQkz47xjOWwXorc2px31bjzIqJ+ahjvbEqAhYAV+9c5S3X
+nl0vFxI/swg1o6zv8iEw4YsOde6FdusVfajXhoN0zYighxlSrl9pXCHXk5a69jJ6w/REMym9Bp4c
+y/uGppu7ls78Fk+4m1xCJ2vdUFeayewra2o6soFQGKFoark3hNcLWkHBnYWGqKtb0PPwNeVgLXEh
+De+asOv6OdHTCvs/NMt7KIHWjSLzasSlqswrp/B0dDCYA4CDFhNgdW6a6Rd/LeQb3ib7E/x3CI2t
+ptGFPfR6i3e1VzRNmp2bnJiauTzU8LTupTHVhKOJ8T73BeWmeHdE+VQk9lxFTTIvrxJKT7+jcN9+
+m/yRaCeYRX6wT9f8GWKPgm9lWHzOAS/4uSb++xz4iVp3g7caV+PqUIzWYx2Ocs0n/Gf5IHDY8PXU
+YKa8mzPNngXXCHYXNFPJ6U9mYCEjMbt5QUuVtoKM13P1xVUZO8pE9jPbcLqBm7juus7iFlHdBZ+j
+/wLDKniGazbw4GIbNO+GtJsf3VSZ9/Q9sNnR5qK7qqumAZDeNzmX7Vj0805gw6oithrcvx1/5ZZc
+dT3HHVnWT5yeKo45lXC1WNRic/rbSwE9XGret7kS7XxAUgnAShudmqLMHnL4iv9tHo//E5vHrQZ/
+dNENHU8mirOt0KI57KTR5f2xghwDeR9ODcTRv9VD3hdpA+l0GizzX99DvkIY6aJpqdzwN2XkHbQo
+J2I5p5j1b5SRs9indPrOLGc/lJF3+biVkHZ+8bJKmpCv/3295PYI1iP2Rmmr+/+kcnLhsNh1jl/8
+f1lOrhm6fAAYRe+S2hrKqS4Bw9ZYi4J2aFUi/Ad7ypcem21culr29HNZeS/RUG7UNPTvbKjVndnI
+qQPb9R9cWz67CioBtUUOFfQfe8vT2RJjbGqL/PZP9ZZ3jWw+5Uvjf0p0WVDw/w82mHtVr6+7FXFT
+22vEpYK4WVtUy5r2+HyvlnR+Cqw1qfezaVEbkGFh/KXNXEH5lbtU6kkFHT39a3Xm5eq1AF6AfV7+
+XGcuTFeeqsxQNH21ynpeS9jD0Q/15l5hH5bVycyorv1U7h3gAsB++lJ9WhbbVvtiWtcxYhX+F5Se
+u3mZKsCS7dAUd+r76nN4gOnD6PGKP1Sf59COC3a7zs+lJP89S39/lqbn9u+OE+4wcb/+KWLKQJwY
+F+jPM4ptEEFKfPunvx6k/Z+2ThWP8B9meHzbHFN/mSY41k/MdilgYvBKS9Fx0PDng7TzE8hfirWZ
+FjDFpMPnLwdpM/jJwleMRXsLSDInM/+pg/THYzTVFA6Td93H8O1QVPbjMdqG5yflONZxQ2FbVPR2
+cu+qwTpZrXZ6+05t+OUM/8Pg4q+9FKMRi/whW/WPI/Vh9JrBzgChYQDwosmYnKhag/ff8yKkAhmz
+YH4IPgzzGNmnvkfhWpxRlL/LQDvFDRSv/yHKwRjyN2+GMzLRLT48UlO/GTRr6FaV2QF/8rdD+eIt
+aMmzVi1XLU0S3iXIO07w3fE0bx1P9uvxlK8NxxP/EGzFYoJt/DvbCj2xIqkJdN9ogGqE4llbHu70
+LClq4Ob0JwTRjOP1AF3Pz/f5kszIk2KjY2i65oDPsGfNgy+3qccWLOgl7pzK+GqmqfW5ydX0XqVW
+usZBV5t61LtJYUXTXK/Yj9N6SGNzhjp6QuoGROBg2to3QQ7ssh0NXBVOlucQQM1i/EqNBWooDDBZ
+RCNGp7vZhZcZegrRu/HbhOWxrAqQZwhV0bwmIo9Wr4br2TZjoeLaHHED53qRPtmjqTb8lwJbSImu
+LkN3bMw8pjnAraJ18dB4Dd0evvWlPYxRglzTRivUkkfHLBy4RLNrvg04KM4sDXobc36zeOXnm5B3
+jJHHNK1pAgeh5uX0ADtmZp636dRc6V7BMMnrPOdVL1xgLoVpAPFdOHdNEedRjpMACilFK8xmvWzS
+iRpEirSaC8Ay8xwCL8htJO4V9GHui9E/yTV3Li8W2cM0cz0hoQxtNSY3Rq9jlsoa13nJIIMjPM+z
+uGkGM9dPesfic9YnTVpoR+tyqfe1eEzMUTH58ZfiHlR0+6XJ2tTnQphZ8goJpJA5Q9UZ0SidWZwb
+bkPkZEDoss8pIaaubfbs4ivjkuSBrn91D/AO2WCmsntYecPdArgeUtMSmmMqbmeIhS94IIpPTr0y
+mBlyt3qEHti/mPRQ65GJtnENQX5J4rQz3MeSyM7lWnjDeVPnvoHk1ozLLkm98TpxlmA56bLBf7by
+wP0ioK6jsZMLyGPEjPbCKWzj0mhdvomxK+V9kDbl3SQD77Rt6oEEXeeI5yCF4BVn3lJWrHDacqKV
+SwrDac7EiyMZhlK+vzQlBgqLrs+US/d1UjApuVw7kR2qhJkOKGIbGcXR1vy1TXFawach4BrJumqN
+0F0La2LsvrQycgQkGHY1a3qKFXTE7smMl4I2WtrZH8zjfMOAfVoiw2TAEvarCaRxdRBvIq1S9as0
+5+5maj33vWS0dMLxGpQTYpD2PGf5Swu7hpuMBqqnxBtxLo2lu85E/l1aREw0BBEuo5I3FfTgCg6i
+DZnWT/Af7BbkqjHEVDEgW2qpce7Os349OyMs9wIsOqh7c2yNyKgr8Vn6mkyoWS2WN1eb4ZY3DX0u
+ISLANlgotfRUZn0y70ZblwBwC61LdoqjPKDFPgesCjEDGOGGpDIjRnDlqxrQccIFmB69cRpADwT6
+RWN+6Bggz42mvhk6aCq7pPVM0gkDvplIqabKz8w+aID8jXr1kMGkdaGEy9QIdbOoidJN87qGKhib
+gTgWw30AXlav4n6s2Pp5shhGxoCqvOunxIorHkF+lG7s4VCafWtFo7/gzJi9LFVRl3eA4jptdYG4
+FQtYUhCs2RO6lTHHfplb+SH1AdTs1tVwzUPLsJfHkw2nhMfYAjMt227/ckp1EXMr+g9pNUJcyxFn
+tHBZcB3s2vLIozGBrEKULLEhC2323p2kzeoLpxnTuzpLpudubL1rr5ZMNsSatKQhgyZjL2iCLu5L
+lI6IpEzh0SWv8iJaq9Z8tqBsN7+H7qa5Y0YX/mg+Igx5B/wr/wjhDSi1eeZrUzn9HsJbVZnwU4u1
+4FbODPOq8ze2GcYWlJgg17v5EGwCjX/UahqFVos4KTwtro56zlBZ2Sf7qPIY3dTdbp/IRPbQSS48
+BLZnfLJi3iVHjag66kXJJh3xv4GMnU1QmktzflR5M8676qg4rd4UPKvR8F/WTZCqjtrUtndpYu2o
+WeUFdD669Gf1ZWgZLqIBbwpXmVY8mzWG5zj/vap6Q3hDD0sr2zwbzXpl9TsqZu40yhrgG5i3aNhE
+NUd2xpV/VNqqTXTzj/KbFATVGf+iynmbQOeBXSNEetTtpk3Ck5M29rt6E/byo8bnEWl76hejgDke
+pPWzOOqBDBCSe+soEna5diKOymG24uunoWlTFMujumhwV910jDa/NEEHHrGlmCpajpqkfdQnSzDB
+VyobLVTLTcBcqb+/rxOFqrlsAmcz9dDujqpnbo723rbW/NRh+HGrZZs0qh9l0snQxJ7AH+LpehRS
+16Oomlpj49LHi9ZKpwK1QPWmwCIDlveMHZFlp02hVXOevtpY6ktWcX39ugUh+pBhA8Juqw8lxq2j
+4IswzuO5sFV9J46SsLupw1RErNf9phizViEeE9vtTqkVr0AtW7pSFL9vUjNOMPPZyx0E6HLToikG
+UY/2UaDOK985kw7k5pUcNlyPo5g9kc1Em/5Z5N707mRTviHeIYLXR0G8PmrjukQlPwrmWo927jqN
+9iaPgjqgTMR13+qRs/RNc2+P8ntylOLToywPxR6JPp/HwkXPRrnXUjT8YFPzGajnF2Nqi6fVKqfd
+uqn+2ab/K9mX185xKGCxPN3Nx1HBfBwbpNsEYT0OE+ZtrqCOIwbawrMIQ0HwUGW59ZQfhxFopeZd
+fRxR9MdxhcqFeiy2GYYoHMYZ63G0QecZYw7oiYw8mjznsiiPk5DjUKSzcu0C9wajknLKrRKt30JN
+Pg5TZlNPp51mu72767Z5S7JNXpbW4EZetnlMabnzOcP9sQoDMMwMmCaN4Q1o4skNHQfOM0sS8x1z
+3UY9ibb2X4LjACjfZkEs283LaJRFsi+3WdFcmwZmWjt1LqdC9NdgmYs7pzM9hvfbrGk9jp16L2vv
+4OyKxz71nEe2Iv5dbfF+wdRtY6syGNy3+TjMKra5luVaMonpStLPWGB9P5p4jHMF1YvL3mqbjTVK
+4WvK+kZ9w/o9fwqOY7TsOFHzOoZr6jhoU8eh298/qWwnke9dXOQNjYAhq0OqEj+lu50wvnNxzdhx
+G2EXWCpKrb+ptC6It9nQAVqu+/T3X+poGf7wWhSkQPfBmYrR+mMjLrQkkTZV3cdF61j3wCdbDSO3
+lrz0vgaNUnpLxlenFqpwKtvGTgHKd/lWL32AAcgxu0fDG3TgErLsjHNLpAVFq4BaNLxNunE+z6q9
+p9fT12O+V/PrKKbVjakP6U6HHEMWtsbiG3lZeUNd3fLiOGoBBDw7LYm9tgxe59GaX4xcubDEu9m/
+GWozu3eFvX5pVFUjdpgSWLLifBQeP5f/Shnf6xFOwJX1t10B4WuW/yhgHP/BL/qFhRuSFi5IEogU
+OKu3gpBf3ZDuTygUgBLwdJuUj282xV/1C/8nyus54VOvQEefrW8RtT+7IZFELJ1ALy5iRI5N2/hn
+jAA/3kXHRpfvS4CMH++iP7IE6IO08AeVAH3Iv/xRJUAfPrf/1yVAXEvfPwzzP7AE6KMOZf/hJUBH
+R/t3j+ftIv6hBejDUvDXW4DA0I9y5xeQvUHEfOgCEimG1F0zUd67++7u/59VuuPv8n0j0Idv4nfW
+9HxY/H7zKh/e8b++d4g1/pdGoA9Jnj+oEeiDHekPagT6oNb+OxuBPrzB5t/XCPThUfUHNQJ9+Gj/
+JY1A27P8x/v+x0agD5/pXxqBgmSml8c3xkFe/rYXyPBzNvGTLAsLFfB/3w704df4w9uBPiyk/752
+oA8v/L9pB9oul49frfOXdqCPxcEf24HWRC8x+bug06N6aOxXo0CjQjvU1D9JGOPw/mNT0Mfb5fc1
+BX18fx8LaD48wP8VBTSB9XHV2F6U8CwJZLaNhHM+PMqNaakX28LHaSpccGf0BgmYnmKiTOxrPZqt
+uhoIJM1hi11rrsN+qPrkFM5RFdwXyVLXl7KQhXFL53apx6k/Be1Jgal+uKuyAU1+XupJw7sH1+Gz
+75Q6PqTApTT7ZE69Xp235pyABKtGT70wyZpMPRxGu1w/Mf1xiyFqBSmXr5rkmGuFvSm74JJ+HJx8
+gjZl46xMB2sUGE3Jhl3bqS6bvRSN6RQh4ldvnk920PSXpjcq9zJr27rbjbWNyu+sUOmi3FqpzmpH
+y/3mVH7WYF4dnGBXDDjNiOBskZammBROL2Gq4VNaaP3yucuClRcOcnvYwadNlgu7EWiYFkVjOXmB
+BXYbUxmcOpmfASJzUi3rIsmg+dUJEk1FNAFhUyX8un6uc8SJEK3PXna+N/bNrq/WWd+hLHhuzPw7
+aXD5rd36OJrMtEJvnDI+v9zTELy7vGekWIr10RHVqg6mkqsdjnaQfwk0t0vRk5f+uh1dPiCheu9i
+WPOZOmx6r9No1bTRPw/WNXtZc9p8d37uKztCcnXKWxjO5fCF7ZDM9LgY50zdGm1ZBv2uX6rRAeTX
+28vyubFrF/wltadJ963Xx+yUMqN5vFJqcsZwaZb+8yQ63Qjb1q9fFGPQ9zILWhtTZ10b8XaV5PgI
+1fim1sEv8LetjCNSY03tc5SWDFdIZTtXs+OjfTlW5t9oAELWsE07u7vMkqTm8w4Wbd8UFnMd21cN
+J3AK2KtwhuWeRnWjud862ZBiyEYDxupQa+OrPovgjrC6UUUMFBIC9w5Rz0jiMyxgm1do9a2q1huY
+hjXjwSajLTlIiuQtZyQAY65nBIGPTyQvRT9Y61klk+GBD9JS8Sjy0oiTCSOzIgB+Vw12zvdV29YT
+ssuYhuOSG2mYd1762CdYf6NZH8tHOOtjtl/XBtgf5bm5uigXnDF6DUY79LPJOzjLoHRmNEb1QHHY
+VEWDp2VXiSMCyOBEJIHVFpAmd7Jx0cTKUsva3SC1tTpYKl3uHLcy0sjs0uEeTi8Tq9xv5yTMa7E+
+9bnXfmX+yAxZh4jV7mbbR8ytaZN+VF056KHV6PXpbPC6YUv+rY+KYA0uu15YdeQSi6CPxZgbarP0
+3Dtbp24pQ1ufcJQS/i/HmIR6kMOd1VNxCIyZq3GdcYOfMNThedJ1rYP5y86NJbSrMnj3NSvP4jGz
+DDo0bJ35i7HRyyLY6PZl4ZWkbTR0tTwqmbjB6qydcYoJ5fefLa0Pnn1NVGKn1SJXSCuWIXaJ3XlN
+BGjaxUNtLfWDzFe7ighqo75AWuwxgbvOksWBm6bkRTDBt4RVciznReMrtc9dRUW3nimH6httXZgw
+SatuLw1tnB8zNN/r2ii9ZcOiCCPsPAv5rl3rwQrnLAFT3vlNIKJlXNV72htjNDqJhfrKr5WddUUn
+H2suHuOgSWae0DKnVe1G5jwnS6tGGJNV6XyrywppGLVtWUPf7gnS1gG12sj/VtPHad5xibvNkjDI
+WqASRTyjsvpmaXNnCA3cskWsEuYoB8Q+N8UG7k6MxtQIbyzzBqRE1xLK2M3W6Ly2zpxnpzo29Dkq
+KVZ47KeWINRoTuYQZ3QJXFaB0pI9ehVpyc5b68ehrLUnc2hKFSbomGk8r2NOoFkP5BItRS14/k3Z
+6oZMS7tPZjLZaeyMevneMCN90cCvXiyJBrS615gjhTxUWj8iNzjfK7mor2qS/qWS9djGC59JXBPs
+tVmPGMTrMteRzGnQnHdN3bhX/ojVMNILixABTUkMleU0iGc+DYyGXu5yJVRK97u4xVNZxhuRtI+0
+Mh0drvhEDyJiVsoNM6z+1c5flmkgZUb5FqOsotJJFiZOehIk/shP1zJ5aByZpldBMdRXdo/9nYl1
+0FrM04Rzm7mDAcfTaWA3JGPaiUO/akt2oif60F305iqeXae3qv2IbE5JQFWD15Jzn76PwWzStpI2
+ZhH5sljnUA4bF87whGGEjT+zwElDJ62Q8hS9N2qu1r1De31GKmka3gvLYcrWzpNzXWoGwjXzRaeK
+mSYyQUZD5COSauLHMkvInpRBdCsy0xGAi285SPOuogQjKgeruDPMovxqzAX2g3bkyw7HQVFVB2tl
+ubWZHVJ7ZmGTiu2FR+eJcFdsaLTaP3DJt3ZkkzEvMXLWQ7LjthNP6P/5EEMqIkayGH5H7YPr84ep
+rrKXrFicr7NnaF08DQNzstEmzhTXa+ks51MrS2c3oIWm4ZCYdnU2BosFH8VPm2dTuARSiio1/ZM1
+cIWBP0IO6/0iteCeZ1ENgtrNO2wPGu6YdNCtN8QDPAQ+vZ1lCIqFOKeAN3PF3uHozZD6F1JY5Q2X
+vefsEocRwwm92DyFtWYguyV0TY5hMBVcG2Y9ZrdMWReSjE4PttWkYfheEL78Siv0+i23tztoTWVm
+HITJmJc4RuGmMb+QvLFZ+rSI0Km5RGnruubJULnm1y5ZAntvuqyUUbKmNV4FO0vfmfc5bsSMNSEs
+WSfVfrIar4gk3jUj9IzZfRjqDhbESA85GQB+4zIkF28/pILdctSag34yzV3axix9/pXKl9Q4TflO
+ir0jTf3gJmNzwFA0aHsqSOc3K++ZgJU0anCvt76txdRXeS5zfZvHua1logsn03IZZ9vezHqQZDOL
+UUW+RtpeAkrQWehfamgfYeVUSkT+aKf9WW7X1syKwWYtXDzl2WHX0AoS4gg2H1xhWR2BO4PgIR5g
+SSY25eMim1A/rrTggYWampz4hY7czuOgb9JdViZ1d421wzP3qT6kKrZ0Wfav/Kx63gXCdvFO6PNE
+bZGeGvVeCCPgRzZV82VmzEaFgLQc7UxvR2VwowCT88MayBlpbbHwESVNIw/KzcbXnhTGPZWUFtgG
+BQM2YvsXpJc9Uz51IKzhpee9Myf2bnGa1D3TqZl+HzrTJh9gr/rnIPNUuFokfqJJS2w9KhwmTuHK
+V+0QojLUTs516kei9LrzsW3cb0FL8eqJIRWAVLcu6obdpEyTfe2U6zPZP+tidp3uU9vBDGI9nUV5
+ohdkSuNs0oI2VqrsdnqtJ0vcWHXW7RiI2C9ZKwPzfMiG/LzUS3GezzWPb6/yve7AmmywZ0wG/9rV
+OxWZgTRPVJMFZTxbjfmQE6XClC68/LmwO3XTujzAaFGe9LcVZndNlGHyX0lJZ+wpZGk9+gsidyyH
+eVIxtUsdi1KWmTfWmDRbUEZ55xissnvZsGPGLrGKc7AOWRFq4A1366RKP8wBp8yMRjRhRgmr2OlU
+lOldPrne12TQhttsqrybdU2MOwFsIBqUsnF8MGHn+6EH5zmhseSsmYzhK92DtRkOqrDZuFB1c6WB
+g7GJsToZ+FS7ye77jMASRrHmBb+nMew3sCtRpHRKXB4jqXvJe8hfxmW2nzxmik7Y62o1D64pteWw
+BD6Jrl7lflx0XQ8HteUedLkiufbLgNz62vnajjV7PLdl57yoMg++0kjdvppu7zvXBr8/T8tEa6tY
+ZBhm874r1dlcz8PNxIOuiZKsy16cZMa2U9ZmfruywUiJ/eQs+Y623DNLT/mjYjEpFu1a/B2DGiig
+ydlypFeK7C+FlQWlI2HW684aDRP5ghCvJU4hXXEoiTUGvfeBLeYrWnNIwNS2yVHGbgLOI+zGvBuZ
+E2SDwZXoXZSW40R0mLC8H+IAG5adVSauFybJVLD0lKLmgRf0icnf1/oveaVoRhr4m6/FslrnMhD5
+12KaloCwS0Z+Sao10GOnyXCKAQQuyfYHprgjLkaXveFY8r1ul+pp1CRnCxeAHD9i6OkmWG1tjDRk
+79vB8Yn81aMit9aUlAqT6Q2AgY6QUG7zfMJIZnlFd53KSbdjP22zCgbRVLS7lPYmMtWkvbZSVmnL
+k2wV852XG+WtbWXz116a/qVV14W384Z+eqwJKyTHrNTtWAo+q7EKME61pellW37IP/OKgCtL1yiH
+DjlwbiCWhqeshgepjsYpZ7NjsNN80zQz6y9q3auehr72TFZWWX8xqjULwloI75W0pJ4dMGTxjbai
+tT6vuiGLQ8Y2x4tVWRlsDken9naa7vQmy+7syHjoeovKb6d4lKnFQzBPls470bJcDXuu7uaKqOXY
+n8I28Oy4zoPlMPsJnu6u0MRdxd18xk6NkSVVFPy6gj1AGitnqaAaV3yunRyn29T3h3w/l7TzYijK
+3UvOrdmbcIV8muRG1iunpKHywO472hkSc2KZ1SouciOfRBykWvWyBOXK7iX3CqbeeV28V1PjGlHq
+eMSnUym8Is5EFeS72q7S+UwUIFZ3edq2b6RMbIacdOmmdBpYvP0+Taabsl+aYlca205Uh83wUnI7
+5jvI3csXfvL6ahWVCEIvW/GTKb0SKio6TVYHjxqJNqIlwk+vc83gSMqqCdprqkeB34V2hPvO5wwa
+M9MXb21v55zRh4W9W+FwAGavUOfW3qEmiaq6Mp28aNUH74xaZDXRwNEnnEZr8nQ8xanvOimID1Yh
+9QPFK0ZW710raxhLU6WXN26PW5ZwYGN99qWp+Se93XtTJNdsKiHSUfSA08MNQqusK6wIfst/Nzdd
+eZZmGi0WXTf67m7W5vQhld18vlAbwLWdEfIV+6EfC1Jt7bps+Ys5X7jth0JOM4JD0aUn8/9l7zyS
+XFfSLL2V3gCeQQM+bBKUEcHQ6k7c4iqHBhxwyD3VKnpj/fFlvurMbKs2y2Gb1fDKiCAJ91+c850+
+jz+jTMbvBR7GD69ryidn0KDHgebTJxV4Y7NtWVXptE0zoX9O7kQ1mHWlKbfpWofxtl4o/TceUlzq
+57z2wMHFM8OXuaPZa5ACU4bP3XLD5GLqd8Uqxqcld60nkE7+vOn6nrYr7UX7ES6gszDAxBwh1uS+
+eymLfuS7UfkwDFnQ7UBt9Go7x2oMdqXvNL/qNfN/S6mZFJlxFThUw2W8LxxnQvZIV7YmwbpaF9P6
+DFQqzx8OLj0W+jxXox1UjHTqPY9Pzq2le7RhOQVLvm1my1eHUKw2wOteZu5GTi76xsxyEeBGQtnJ
+SiJHuLWZXS37rrLRSaF8gelEI3mtIH1pBVtlzWW7554L5804dW51cMJe/FwCIl03k4ncT7gKbr5r
+szH/HrRBmtOWeGmDnjzN+k0ayi90dMXrJHlP0JogslqcRjlbQDVbP1j3So9TmUg5TYxsbCW6U6g6
+vdKDzunAwCsdb5y6Id2NRqr7ETWW/PJQpj3yQCP3pRkMv604H8m3Gzvx6eGTXpg9uT2eLGuRv23C
+PN49da10TebJi2WB3dnAzMC0BePcSQRjLYp/M3G7Sej4Cezw7m7peMyu8x3a/jiw67dKlNPnbDVt
+t/F7YytezXpcOR3NemrTpvoqqU8eCn9mypGS84EZVaLFQVuGAGp0Zk/ux7Y2LRk/+bBw5OaqTBbu
+4lvfjAMIHUTKrpfvpyoMfv23yuFf8U+oDQSbyv9a5nCHTaP/HwcYUFn/j3aNv//Dv+QO4g9CE+FB
+OsJBIkqm63/KHQLnjyv17BpHbyOh+VMJ8ZfcwfH/cK8YgqucB0CUuNIW/5I7uO4fSCPY7yKi4N+G
+MBr+DbmDQzLMv24WhB8jGQJgSYNLpMQVP/cPuqFxpl1dat/dLqD7HuKAiCywjuMm6Jfm4pbuN2wj
+OPqzdOeg7UdPayNGNe7Wpeeto8H50uskED5nat9GnHmTGtONZ2WUPxWFSEwXvPOmXELp8F8AeWB6
+rJr6gpwpu1U5Ej3PlAWKxRwM0TUtzVbRgprHLZHv98d8UA+6l8sOjuD9mA/tnnr0SS/ToY9VQdJa
+bCWU/e8FutrdMiqXkR1lsu7QWGc66F/bRXS3BjjJzmqn7OTnOYfz3L3qOO1vLLvzfwSB7PfcSvCX
++LKHwlqY4Fp1+oXBxH+mbkUx3wXhPmuDn9TJiFc5CO3AhOQmhPPAy9K4WweQ2pGjGVbANH0StNWe
+Zo6RhzyDgkScNxBVeupDg7zzMtvpvbJAEoWz5RzKq0LaJ8Lt2wjLPcHXPmy8UViKF7F90+303Mtu
+2ptF5PfUZO5WDTS5SBWt6xxm4O7IGpSS/uNs1UEi6xZjQVoUL4E1e0953zi7Pqz3Cw6gDcKnaaei
+hrOsq73EqvUu96vonMbdZcSJztw0XijS11f76mawNGO2YQbBNS99fcpCcn3sruW6zfPgqZlMyUEe
+MwkQnEkORv/dWkxPq6EW87lbdjHi0TNS59Pozz5ZV+0qdhP52aBS9buzwnu1NMU3kH6s9ZXmYnK0
+5Z8G1LWJO8jvXT6wDzCDfoot642Qut0UhiDF7PmpapcHxcBrG2cMIXyORa42l0HcALUarNg2XobP
+eK7frTKEyzW/+5LqejW0DUKl9nYdu/M0a3ikYIu4aAmumkUpTzqk5lmKiUChXJJVzMyle1GRv+7j
+wTnEwrx7fI2X1PK7I01r/7X23cNgzYIrO5heorTtbp3JfKuK5TWfg7dW9L+LdWXA342HthEXlhNz
+8RjM1vBb+VHfnWZEr2LjtI6ht22Cdj71C2aa3QBHL7rJq2X+tvhd7N7bQjYXnyBG5qKYdYr7EW/i
+/RCXedmyWCniN2O1oZNvw6VdmJOknU+dRpeHdRYg4YY47q7ekB0lVoYoGMFYZVAP71JJWvPGTwcV
+vtaFxwA471wd8V44KVDlhfNrvwY00slIIzBv2Ge5/l0hRXVfN61qLwgm6VB3tmZg4SZ4wgq997Is
+rXbVVEOVgIvpZD8ZiUm4HNZq1K6oq/aNKUr4OA/0l0m6Ep68tSPLYhpUsfnYuGAAPqspGtVZxHF2
+UcaPokNv1HqWRDhaydXRRMoV5fKwJ2dB87jpruJxL2SpAUdMhtRCD87CqZj8YEjQf8sX6ARCJuGi
+wbz4orSBOJApuzVeW6tt1OqWIAgHhtO+8BlBHTP6mKDhgXaRUet4XqlzRZ+xLZj0YAt4FXJAm7qk
+Bc2HOwhztGpkiElUwY/du0Qz6P0q4SDDO8d3tNNBIWDOhiObo9i28iwxKZYzFhomjjaBmeW7PTK2
+S2bZNusWZ2rw2lP5p5s+X3Ahkaq6LIkqjdY3kZa4IZxonTu4bF16atKU5m0Js/4dKrhyfucOU5nN
+0MXp4xj5lI/CqWYQFgPj+VMZFeIa8dHG5lL1EfjgXpnV3C0MWqxLJ+oMS5E1qOVB2H1sXqxZ1gAZ
+qsA9QtTgDW7cYCxOhayFhR8os8WhBHIzb1x/nr7cXkLe6H35VIiUF6QR2SJ2WSqgO4dLt4wYbzov
++MF+0X8QhGV+zb61fPnTFMhdmHmjlwD2882+5m4V2wa7gHtARD+SYhuBrNhnwm+DI+SxXD/idIqK
+XYslZNl6c1AUDDaHDBSJCubnIZzNPcNNd49pdjyWwXpjW2l+U5iu3YElrh8DpS9ZbrMfgOySpFM0
+77GbNPcqtJm1CXu6x98lwd1UuNcWbALbMZ2+HJWvhzTMLjOkCeYeKdPrrLdvrTVgdVPNJzvkYatl
+abY9dL/NPKvE1kGd6L7t74D1LpsVPtomjAbEsTjjkJm7W9EKeWg7Apy8wsl2xTyAdW6q51KNj8rz
+JWPICuMaq4NsE1zLyqtppXjt7LKwbmXvHysWDGjbDYFFDELCb0XMU3Ig4gtNetieG0uwZRFrcGqU
+dQl0uN4UVnnorpatEdqcrO/SubWhG+rjMFIYQynamLL53bVzwx5xrvep5TxkAguQnZNp3eOlSqIy
+9JLBSM6E5kFeP6EVS7nVi3uagxknDKfVZiwa99LgfN4uqdwzj2Wo23oI6IMPrSb73PRTyu14bZ+j
++djUbXgHe3dMYDVjq2vco7s0O8upjuHqeMduMv2vcA22bpAVSVuU0zFl9A5YzlhNEg5czXkbvZuh
+fukc25wWPhCJb1F8U8iLDVjJ773qC5ME8/g0YfhhukiFtOyMhXWKm6rGHdWy50z8ceDEwI97k09L
+fRiAMzwHXZzROtWrRcvag8w8pwzUMkZccRm86z87n5Sx0XoIfXBGl1E55sa1qM320Z/9E1bSUe26
+qnCDTV9eJ9Irq3P5yAY9BB8ju57WN6gnbsvRPmSiWXdNGkbjDUPUtthEZs0fc7sxz3kkjb0fMzaY
+zKno/Saqr3ZfdnUQPJiUjOlkyJZCJH2l2/qmWqbl2MxrSD59EcXA6rJ0dZyz7yvZkc3oljSx1362
++rO1jePJ0scJpTav6UjEwWnodboc2oH/6AR7+U96QV3442dtpVVwEH9rr/O8Y1heubqSp/TPbnzF
+u5KfFwZADtbOksuXzVIGTlMD3dvE1w7vZjC6wM9xXddSgmB+fl8jh+fKI50u69nR9GF/V1p91W20
+l9XlQ0i7MzzY/TA7uLssa5U7Os3haYh1YW2QDNaPwu5WYIEsCPTjQs3zeTUM+/dNGC3rlkC4EXsM
+bHIildxaRVhRgsAcMBhk8X2uI4q5Lh3Q0ctwbqgOqajaI99F322adIrTU2hnATQfSgOyVqMpU/au
+uE6Ncsy8VA0GLKqlhElfq2op1qSdlrjcWQZPyBMbsM+gKqIjTupjBgeZiCyh90y8DgyPu6M1XGva
+nksoEkXG18McMWbDSwbDFTGI80Ok1vciMwPkfC9jL9RJK94W4Zw/D77k28RqtCNk+XUy4bmx7R11
+WyIsQ261B+Rjstf2UPXtEWlAy9Uj1Gte8Ql29J0T0rI3FRasoK9INiBMZhMSxwvrT+xDywfHZ5di
+a1X1edDNCxFEbCEnPj/1Ko6DtBJWavd9F0yPvMDvaZ6nm9kr7+24OBsddttoYuNgIn1e5jo/yiE4
+URLdK3benxxj8yUwJOdl6fNg1fvB83dBWZpd19cfTu5AG+obuW9CDMzavJW6fejFcEzd+js0yYrB
+KQTJ1HtM2f9vfannb5lCe8MTOjIAOy+20UeHT19QpIk3t0QP5C2rDHYVG6tYvzuTvCt18Gx86Wy8
+aLxDJ8toLBL6NotdBo/etSIKxbsP4giHTvN7HZVJZODQqxh+zmi6RNwuoyMOZqzuwt56LKv8bY36
+i7fgAcNSeA5l+aMdWDpVvbI2mfTSg5cauZl085GtSAwsDJ8sk8uRJLi2/T4O3fNgR08OeWNbpca7
+FFwnvdS+V8PNMLM3BwvQbtMuul3rnmIUrUW0mAuO7ceoxTrkTe1DLoLHIPb35C28YVoRuCl7wSO6
+dltvaLHgxOaDq5oSecpvB8thmKHiA6XuR6PMXi+aS7zB6qrZey/TtPPG9uzWZjrk17FhLtqf0g0A
+7E7xVyeDjZcyXevFeVXLW0xrhOXHRe+ggp+zoChvV7o+ho5etX4f/xwZEyB08LPyI6cZ4m4Bh3/j
+m/DdXvX6yw6t8Vb62Ss50eYZps6WwfUGY/uJY4C2dZ53SstzVy2vRWXf1OsKe7aWDxNI3qAOb3t6
+N+rLXR7Z49syDLdrOz8UNFYXHUXPfmlyhkuuzVHPACjv5viUDSzeIjeOvkHmS5YAxpSvmUQG/vSW
+wXFL+tFlL+2xeTaKLVhQyYdUN+2W8ZiViL5wbyQ7rd3SO7w9eGCLfea7ywNpQg+FBP0FOgT9V9b+
+WC3EStkQTrdcNu0Glj1u03lenztcFCf+D1dthYcLfvF5hqss/yW0FScAtZrzbKQGUSaG/ToEnTn4
+g9e6UJEdB/9Vw4r0HfDXVQVQ9Cwj/WmU9/6w9D56DkMVdU8XNzd7oHTZcLJYYRD3IVP7SJmetwly
+jlQfimzs8x1tjw+IrHFzW52gpo1A6CddAjCNe/b7Fnuv4jqnZu+xioXlgVcE/GnMQD7knGCdEg/5
+4uDa7a2bvh35Xbdyrfx21jFpB3Wl5pdxlu4nTv1puh0rJIcJ7sPsJodlKGiFBrhrgFD6eIUb3IUU
+bN0izkVerwQapMrbTgxgWs6EJd+x+V+pZruGn8qaQuaXFkIWm0kiNLO6HbvbgOVGenTpY+7SIKXh
+EVNFSW5lFSUtzIDmp5TteB5orNjc1mFxalujHgvoo/WN1fbeb095+qVWaxbvrVANFLUz+PWeNMpt
+O9tfQbl+KN/LIamZmBeuEem5cad43M/sOvPNqPuzieWDG3pvJptv4Ftc2J+1VdIZ176rolngjJ+c
+YK99S1YHDFbdPhzqS+cBbIwEjU+OeE6xOGLTRE+PbO8qF3Qhavv7chw27BGHzTQAaZ7XB5+BKPo9
+9j5peOv2UKQ1N2blDQdPeG8eXeBNGrELbDIghFOz7UpIdYtVfRn4AccesRG2aVBcuq8ubPSoLQM9
+bWbHfTNlv+yqNfzJPXSZ/flWae95jsNUnibUV8AsPWl92aIWz3KxXYlvMTNqX/bDE5MteZuzZOG0
+gNT7ohokS7vJGsunppKFs8lZSVwNzqUGihE2obmNsKMdVpDAGNVzf+LnaaauuGEDf2eny77J0YC4
+PMWI2DQ7qJ+9bS7udWfqNonB1UvJNjV3RkBlttvvubv0t1ODhgacz2ee2eqAS9sB7xGlnIzunsvo
+R8V4gNJDaERTa86JFbtPtI80/uRnsuwVwrtr6uWDYdIvS+HL57a2v/ygOWf22DzOc2URxTRNB67n
+tX7OC03JF08axmjjD/STqrqWXmO/WDe05KLbFF3LX7GbiK0xRvb8i+6HVwcnrLfxs5BSTNkouXZ2
+5yJuwRclCXUukU4ybrvKhBqriXfUoTz+vooo6HJHp4/c3WredsS176fVD/cIH/MVGCUWTrAg3vJe
+V95YbzvTdyiTSOjkVeljVBNFNfFAKz+durtOl1X/1LHkSzdRZ2U9+SnN2O0QtTJPDxERiB+6FtHH
+kl4HcfA1rd11q19v2fZRtxLCci0z2SQ2+zkGBL4Lxpyboves6XsLIdQ6oy+BHC5CVHMzLL+Nstnr
+O6PdPGN7NjfOFBYPKNCi35m2NWvpJjpWjBSp1Q1jvba1fzQe8zhglyVI6HJoX6M4nXYRGNN26ZH2
+oZM9RcPwq0KlxpKxmfZyQHZzxg+st+7U7jo2XuKczvG4HkNXdd5jvoRzxdN/VWMwHCwAD8CZyc+T
+sJYpccq5Vzd9GLftwVCw/sT2i/4OgvfyW4cqFzvh2jijTVFM4tDnnLSXKWzqcz6jHT2h3UaXUeeE
+a5yAwSIyWgenn2/ILadlKTQT5J0VcmmwQLaznElMy7Atq7xYndsSCfkOjCYHr+qNvL/Gs7MLsFEf
+oWecP7Bbitd00fa2lwPCyRxBDXi5+VLC83jLKC6a1etOdlYxWWLG88uXLp9JWwX51xSF5aHhzVbo
+pUL/dWTHirMT5dBGB/QMkKjEs1ek65EnQQimUXztBI0jexi7TqP51jTWVRCTe1JVd4gXZ+e5R8TY
+7zljan1fTBkEaS9gxb8dZ5qXUwGdPP9aO1s/0w5ivaZx1etD2U9q/przRl3N2GoJXoLRDspd19nD
+uu+yYF6PJERaJSEDxIwzuYv816mz6/qJIritH714ybrXfPECdTKSKBxCJCFSqJ2f0cbDyEG3tjNr
+M9aY92uBwMzNsfzfxqHkNZjqgXqBNN46PZJmgBqi6qwif+FHcWGhCLr3vWMDu90NwlfpY9k3HXSU
+Yi4+pTeD5FadbTm/A0dX3zPem9+02w7wzpZmHXhmk/Reafhkpn5efx9UrvUBRAMUS6RafI8T5GSG
+Q6mn7HtZ1ua7bxkz7SCTRwwje1PdZAaa8V5rtJq8ddNVwakaBMvspBGw4JvEU147xnuW3EDOA6Ve
+Bwdj9LpbZYkxIhEByXYyTGVfbeVsQ5WIArTju8iv160DMCbcydhLH+l+spDRF7E+m7VzrlKJJXTX
+HeWx+tlLT7JRtipPnDnYSB9gNLdyQhjJodYjnrh+z2VmdmS0c5S1Muzni/DL9DQ4CIRYYkfX/n1A
+p4jYM8/DHZgkGw462FC+gcibi0PEk3WBXVOq+9kBpHXOge5+8GRaCeShMfxwhzT6HOfJf+KMoAqM
+WouzXkeU/yZN0O/n3PUoFNhtZN/HTqXoGLrhsjZ6hU++eE9lkC37VsXhdXGWXeLRO2lj3LcFBmtF
+zXzEFg1pgrnnK4Z8DBea3NrDmrXyknt63q59PDDOJNeqXHV91zhjcYzb7it12mFv25rAwyAGgsuR
+e8GMP28kS3SkaTLkFFSkPsjMPyM1c7Zt4J2seP1VhdNJV0RURHTTrA/t7eKKNlmM8wJ8Wm6noS8/
+Q6eunw1n+HF2StzrrXnq4+5Y6/jJZ8T3Azjui4jKM5Ej7aakJkkG2w2faxPfKtHedaOltmWzHCKR
+T5sui3aqUOseRJR6Q3j7c6yl2MO7cc5RtVi4vvN82UwAqoGaoL8qNx07HAY7QfjfbLj/K2kGibqN
+Q+q/XjU+fHVf/+s/vn/945rx7//orzWj/wchcDEGaNd1/7YT/MtV7cV/YKoWeHgi146IIPsHVzUx
+Mi6kONumzAujMLoyz/9aM2KqZv8IJt0Hp0BkGRF9/8aakfSvf94yYudGAxDFseswmIz84Ipf/4ct
+YyHXiJkNPLFSp91bSzDAt84Z1Is/TBLac4GO7eTYkXxrWjv8qcjXeqncPMo2XivNDWDg5nfElP7M
+Rzvt9wwfySHxfYjgGzvqKdiklDhAlnZlKll4oiy5U5AxmnIoHmKLlXySNqzmmVV32XcC5NHgojCf
+qbT6rkl3RjrVmtiL1J8VbIPPPixzsQVLTtta9DNunNIjQDDpG0ibCaKO8jI1Lor0eshQfmgwX2WC
+bGhpN3HT03TZeeqs53GO6teiDQbWqWGsBRXHGrzGPf0lzGk7wGAwDvaTty6sYEq/rW+hMq7pBWQD
+gsNoztxvtlqZxhLdU9tUVFb5gPhs6ggrgQC1W93ZPTKjqMutZWfkZQBmoE2IJ6OfbenEawKu2f0h
+4kq8W0Grny3ZenMikRWz4zROfzE4Hvxnz4799aArTGVI0GI5byor9vZgmYvwFDrD+uDaDQsZV6NX
+WGsd3nmmyb6EdrlLEbksxONej9hz2zf+K6I/Bo86Qu+8CSkpp0SMxSAPXlQV1nbo4xlgjgdgGzdF
+W124cXD8CCXLZK5Xe9fInmaxL0P/MwuG1OLlFpVgPCnKdRvYuA6S0FEziY6rZrxMm+G0G8uvnZfG
+Jw+NtY+CNj0x5H0coCTZHMUzxZ2a1BC/tY1SFV/MbX63dafTY96hEt8KLBIfvhOY4eSqqfosSjOQ
+UNJl4kRLDuwEsJp8Dy2oFJsR9rjZedVAayfGJY0OWDD6HCmdm/OxK2UxgecKUnT6jB2ouHoWO4ti
+oLsZc4Ro26BsrdfI9Nmj7Fp/gCuGVg493szogzXiinzfsJTZ2sYpiR0tLJ/YGNne1MucWbvOvub7
+gKaZLUZTUfG04IrgombSDDiwiVkct2jLAqbcedadtOM1cqe7uKxYN/nTDdc6UXbUNNF34FTrVVS3
+Rl4StmOLu0OV3GJ2yXYKcthcvTOPmd5nFXgPVlrSFYRML/k5+t7c5UEmP5giL7/b1BLBNkfsGO2E
+lB71uJPb4Rbs3ZRvA2H6V94kdNwzK3izWfXCCMGJCXjZK5Opb1Zpdfy2nIrXq+JvBjZTlM9eXo06
+CVwpfln0Xaxwun58kEYafq2yEnIU9Lo9s0kE7JRY7gPNUGr2rSOiBw8p5wcxhCbYDAJqD1tIlNWn
+pvHB4o1yiINdahSb/mAQFQmRfsQgj6yF5Wz1BZrbyWblhvktH2hkrJrcvziLnIcpm6MffZ2iDq8Q
+CScqNNYPDXn8vWqyN3sOGzo4lXXX2Ai/f3LRGz86nb02m9nNneBQAE1pibey0JqRmrCSzSLWMkvW
+zg2anVtiHtxktVhM0nnz8jhTn/3uPRiHmzSto+/1WGgWQE3RMthnaE9kj1fZOF+GOIY7GBhseHR+
+163NaBtEb1Wn+SxKz4V3ErDyYqJU3gn49TqpeS9gsIOx3lZ53Zx17rtRQkMIMnvJQe0lDgi188jh
+OSezXxcPHSuoYOcF5fiqECZxuiLsKshUkEhwdcji9yiIE7JlVn7SITmXdJls0oJaD9xi2fAWboti
+0MMGz0H3UMOaIrIehRVla8MTUYPcdZNy1nCeqary8obZlPPIyNn77Q8ar8LVgcS4DAA+8TB0NElj
+z2ZimO0Vv1x/KX4yjEFF3ZSe4QPtuMCtgjkP36JFZREZPm6bJosY0eGlY+75B27TNU4QlWoPdbfr
+n/oZzuFGovIztO09Q2qLReuNV0Kc2WKeRBbW+CXuoKauWzIRUkTJ27nw9Mfs6xs5g7S8G1Qk7J0a
+LSBOk6cZ3qu48UnNwoq1ANiUy8uEI06ffOUMly6VJcAv4ujeR10FjKicIKjPKaknhIsVMtiXqghe
+Ydw53UnZzNd5yeR8tLSCZJmK1v2lMWdeuFdwNyFRU4zDmW0eA1uq4sDoj3amyUIHkmQZVM9BjzOj
+W+Ad7/J+kq/CpdmnKcxi1kazHjq2osOVPVymrH6qLu7QmSGp3+SLLddtl0tupzT33N1Y5pSzgrf1
+EQ9j+xQQrVElJVLPFwTf1Zu7eghx09wxn12osrO+hpNswzlOic5axuZVjG3MjeVIwn2KAo4ZaovQ
+uVNFnaa73h6yL3QX8rUtF8iCzLOyH54uO01wQeo/y8LndWPxNX65arF+6mgKms2/L3S7b39ROXe/
+fhkiDP81t/Cfkg/vx1+d+f8y65D68P9Vf/7PHx0Kwf9DJP7zr/+98gzDP0K6ezITHMd3gyjGHf53
+nk/k/SEoSV0/IHqZDWnIF/lL4Bb94bDtDP4zwPAKkPqr8nScPxw/8jAcUZv+rZj9NypPpHb/XHl6
+ATVnRC4zYDyXMvRKTP7HylPNkSlo+uykz0ddftmYX5Op02ilWtcDQlcEA4KEYkBl3WKu3V6HYnei
+T4tzMwokmIibPiSa9Pt2JcWlrTzSVwUGgKEpSdWahULHcXV1Iioqpnmv2lIedcdOpfYs8xiIGeCZ
+Lwr/4ESss7MRkKZBG9BYlmYRsrQfoolUnZQeiuetU5KqxtSu/An4EkMYARUXM1mKsRku1HOkTcEE
+VMqHkg1mvp3aPrzzcWBuWk6MaNsEHKbE8xb7clrx0TCm4lIZWNmalRqJELYzY8fR3NrF6N5O+dA9
+YoNKt3WZs51zrmZw4KPZFr+yuEc4Xxxg+HGZudotb/MFcVbJwXMKnOkVOhicXd+r5Du6H3nbDaFC
+7h+J21p1L5iqMqL9tEd0XbFx/AptzLpmD+u8FGe2wOmTLsoHlfYoN+B/XdqRi8Nn2/AucUIfZy7b
+00LAF+A721NvPRlH2XZBqI9f1VgHMxf2CybGQMKii9+mfGyTdULM5PtNcXRdyib8FuT09hhOd1E9
+4pEO5mqhXG/Qb1sz83J8x8tdG9YMMGLENdQk62moFWliQZGfdOo8ke1wDvL63QhYGkzz83jgMI8m
+JsIFTkGnNs6WYapJsiWItzRS+WHJbLnNVNnUaNfbec9bib/J9sqzMnV6s1a2RhGJYli4md4juGbt
+VIQ6WXTY742xwAvHJKIjDGRaGzXuKS2y+vuKumhHGxAgvUzxBrJuABHrs1bdhtqT93XrPzl1Bu0Q
+k/ZckSSnILgCjtZPS2er/VogmWM/Hh0nLCqoZPh5CzqcSwTygLGVF+L4HponoKDMHHtH7T2RjrvK
+tNUxHwuWbfHYJOxVJvNYzcEU78k1xZee9WjM8ygtx4DNIpq3sxwck3+rWCj3/m6cJpEFF0WCE4RV
+ivKAeEtsuDhjfQxVnr8vtMJ7v8ldB79W4q86bZy71rEstF2zWyPGJr6pLovJkMI4Lmt2ExZgZR3C
+crL6BOBNJV5fNEnbaVLq2mX8xUaK/0ixBkENlt0oLpqfYbrqV4khMLExl586sWQfVa7YB02BLR7G
+QLIk63ixUj0qMA9p2u8oqJqnss/b/ewX2N0GRjZHDPvhLS55bDkeUsXPNcbIpErXcK15hJ0jWr3Y
+gVN8ljISRI/K9nvttuLQtTK6WwH02qR2yeKQskh+Wmek6hvGuVQsWvfqZZz86iZcu6tYKY05pCao
+lOQLDCFLTuk1u8IfcPm2Mn2esa2gROgEP3677lNVOshwBLq4so7r3Zr7wTkfl5DcIGke6LC9667i
+xUOMe+umbVlt8jRGnSC7QX8GyIeeYuGYLYFbBfwA4/4Momx5g55MW4rVV9/6nvO41l66qwYemDDK
+3eeFQvMp6tfoNhrsZpdlufdge4P3HjVrHYDKZBo1uXUwnZ25YyddeFfbYN2n/u/UddyXroWoSPoi
+NXCf19n7THTpQ4qMC6ubcaJn28cLP1YZkmJLtcEbBGvm0Rh7EvgI7MTyOU8cy5uwlGBwOrTRtQJG
+sISYNghYgdGNhdausa3+kkZpyolZFo+zQdlMOc4GvFELsvvFsvAzYC4oEsmQ4l6PcD8SX4uFfCbm
+z5jEKZMVdgr2rTWRbqqBuZ1e28+eNG5+nRv/hcG1+KrIbpd7N/AMJfASPOe0awS42faDYPDxTGPj
+nbMx87+mTjiPFST+u7kvkQ6nS7Ru5v/N3nkkV46t23kqCvVRgtnYABpShAAcTx7aJJPZQZBp4L3H
+bDQAjeJNTB+YVbpM3rrJuN0Xr1lZJHEMzN7rX+tbLWtW5AILnAQvxyUaMFzPvalvZEIVYqq1ymey
+Fma9i4Gzn0fDnKGvUgPJvQiHRtvP/daaZXszaTV7C3LSJ9Z0ASEd2eym2VHJyicdnWgRikUC3L0y
+DupQ9T4DcDy4hjG4rW69qLKzd3WoTi25mKjjR3Cd+D2PSl/RKkgpsqQl0xIV4R1zZBAuu69y7MML
+jaelO9WGfS6CAhVRSxyVymAbEQS2+w1zMWieE0n3LelCMmKBgek07PJbxdHazcT4rUd5ZBTd6aly
+3TFtGcDEG9V31VFLEjnRTLtWk1/WtFQKrxpD+zItzOKSgRFTeDZElGnkNopqFnTdJ9r6YijNtrDp
+3Gizx6Dn6Wh22trzqVjmbraL+HZeSvWaFGW167XVrqzIhjxHVp3UKkPcRtJhj1YkGDIbmSzWV7Zl
+mjyQS7SfI3AkfJSByizH4lMlQAO7H2hYsU4axXNfMl3NMwbpDqDY85REyiVk88ZTmVShRNN19y2n
+RPhBcFHvIuLybOZDK3jCHBPs8ny57CuZ7ycCr8aoeXkAi7jUcxR6exDHWtWvHFqXcRRNT20UtMdU
+E8aDhcyCYbu1tUfc2JHHXjv5rGLoeykmoW8WLe0/cderzynRpkNlh8g6NXpZFM2Vp1n5J6w/55rG
+A7+dHPNUmWp6SYqp27axsc8K5S5GSfM7OdErnEXFkeAmraIs2XvSlv6k991WMCnkJfB5+okM2pMa
+yXwH7abeWWaR+Xk6qZftaMZ0m+WlX8e2PHANY3cxdKQYtZGkowFU4H6sH23GTGBKTLEhszZfNOlY
+HgeVxnMmfMFuapVkHxOC3gaaat4RKnc2PKYcLLDGcj2m2nxVET58zMeqOjvDWNyBSCp2ppO1Oy2N
+sN8U2uwTJEu3fRLII1ve4QrpMj6bNh2tmuy3XGdN7yWEcRPNuI8NjXSds5ltSv+YNF3SnHKkKXkT
+p8vWDGp/GO19gZc7UmllbL5Uxnd0InmFl8Uhzq8XTOxH1JTdYsmeQGpuBDfMjcLHtlB3IH+g8mmw
+TunneCKJO54xnbHc0ZYhwkNNTkkdlQtBGlq7zDnxJr+p9Xjx8uy7Y9XO91Wd9DTR1Qtgh45fYOp0
+7hxG+gBZTTC9VnehVy3XZV8391gVhD/aIS7GcokkntEgiJ6HgYLn3CShEdZciX6PI8HVAvUR0RMn
+ZBlD76ZWgIx50rtLMkVYfymPdGEqaBs9nZQXtcTbtcbvN8zLxo2WxyocaKA0Qzvp16EV4xtGtABQ
+lJPCndPPrZp3GyVkk1zhoDyyQB2/jL06bLFv6Ih90iQtTK18hzS8j/NuOdOiIL0qoI6OpITcKLgG
+/KjA4Y03umIZF7fOZZMu4bZT8/IGdx2rV/LSMP2d+CiUkFBrpDu3CHfzruF0PchpVXFF71NsOx1l
+kxnwj1KJINDLnZwNgvEk3fkRaNYDtgMfv6HuxzkBF7OkEaceHO1Ul9pnCMv3JOAflRCbc+Ws68wq
+JScTKCeqROEGyPkmMOhurrmruFOz5G4QNYtfK9p829ZhiCs6iVBgmBmOQ5luc/Ify1gEfsZeH6Mi
+IdUxQYKgV/q7YdCd3TL082Mxwom2TtVq1TF0e/RYU+EaokJbGKzPyDESdlvkmWuFxooW19SIByEi
+NNiZCxEHwVOtMeOXhEmmK8ZW3yYVP11lhDrsSn0CcfK9ivNPsnKuZq0u93WYUWYAewBjrkXxnoph
+P4D+zb8NPjwSjwYh4xiEM3uVpOwhlQTl917rJ6ZvraLtWzDQXpah4FuJmmxwvq75G/Glq5zy1GZh
+vjWUwtoaVm3vki7JbosQ88Lcqs3GTLp7hK/4DNmg3talQHu1AYnPec//G0GTCOuCDkrTHTrts26E
+9BzadsJNufi0NMOhaTjlE6n7M5Ktm6HVMhWsCSoG8b50+tQLNGrKbfogXU0PTh2I7tsMJNW2NpmL
+KkpCYCNFn5m7yDngpObk56my6wyd7ogoE0eA6eo26YqBLuip9IZO0TjdW4oyrLS7w1vUHJTMJqyS
+jDi9IT+lUX9t59YDPQ3EQ/sl3YTAemCn+3j45/ZQ8XsYC7Phvl92tlpofkUt8qmyEjRoQ8FVJ68T
+TFU0PzfTHhO/1/XxQQpg3/nC37LxPuU/CPS6an9Ol6k+8tQd9kUzZXcY6qKDAKx/oNImZAY94W1T
+NBZ2mCdt/fDvyymX8dembMsf3X9SKQWi3G9nef87ew7L518Sgz9/5a9JnvmHZuqWZZPrE0zL3ugp
+TPLYU0OyouHJZA+vvilKtv8gt7dmAiWdCa/zujd6ivqHoNsJNvLalky859/iI2v/PMlDmkGW4S+q
+1opbfgd0bULyt0EYUlgwmmZ0rerajMGGqhFCHAu2jI6gs34W9oKHi0ZznRT03OvBbsF3Tg5gLqiG
+XUSD5OhakJZUBmZ6931mtXUnV//GXTTY8ReAhyq1bFgj7yZCNcTsmYPR9cFT2sURkJ4UJxKopVnJ
+eqMmomxtmpb6kp1aI0ZEgwzLeyPvxC3rYitZjfRTslfroY0fnVyrrG0Rqeq41YBnkSIQimrAWMHQ
+t5Gp1XsQ6jhYajkP85AQjgll1aT3TsxyFfeZOtFokoSnbgCC5yoaLeU2rbqZV86TpVPY3jfF2Uyr
+kOJmIVnQR8ypfFNz8gtpSGA1aaSTERRsn/dqNbP7jNOSila9aTW6fDXNvhyWafyuIL2ENALPwPH0
+JikbZvCpcxeJmM131Bn0GBhlTD9LgJ61eFUvRYysP6SPU9Xa2X7pxahvR8YqvlKxQnUtdV1LAKJr
+L4d+ALojnDF7giHZadtYn3tlo4WaOrv0NBiFH1XMQ0DVOel5IF7+Jca3MVBmOwkFskUZ4ROO8Wm1
+6TBJr66W5c7sRB5vCpJMkVt2A4ayQa/qHz3J99EjTDlN3piXUbg1mb20nxZNZHIzSjW5bCDX44tU
+g773Cwd7vm/XdfbCgyN7gnZV3YXE/54J3482D+GquapNbH8bhi68gkgrK2MfkJ4517POwHDiL4iN
+hUXYuewbTWju7JjqD6NK5Q/GS6ri2nWT3FAP3WOxpDmp8fTCTtPLke4oE+274a/2rwS3UY3QCOdX
+slu3Qt5yKyHZVhYm6KGqsJW7wmEo5OF3Hz/bzrjMB/IErMLIYI0TVPuZHguoJjzAcqng87Eiu1iO
+07gM9T5j7b5Q6iKUx8zSerqFVCgRXqwuCIT12MQ3i4Vvht69Na0na+2blQw8HfDYlfpJbzDnuI5V
+YWHndmLed1aBy66MG2gfFrLNV8NYMXEm2/V+o3I1kJyITCPbw4+GagmRMVtLrcq697JeYVI5tnlM
+Vsns19wB7BNzh8JCJ3eBLvDYEWaHv8KmEryjqdTa7o2ofP2TZfq2zu0djFNQaWeajJi49WEUZL7x
+q047ZQr8v4WLvGRT+U2bRISjlk+OgmNL/lT20ePD7+XfHOs9IfvPg0kGPDqXk669E4XH0l7EPIgM
+131e+BZ3VcUzTau9aBT2RzNtkATr+36PSAJsIU70Q0imd/9fD8T3QXourt8PF/LnpSRK/3bA8PN3
+/nwimrhUHB566lpr8aeB5R8TBsuxBbj+NXUPHfcf3hb9D113LN2xKefQDUOufXt/DRjI5PNUE45Y
+XQ2MJv6t56FtrM+7n2fzWs9I94XJ4Q3qDplZ2GToV7LtG2eLGAlMoUzXbIxz0El9myrLpqgWoT+l
+hqnn+35SY0fzp7hpJsYLdVJx0fdkXcsvKtzAcSPrWmHb3ijdlo1pWPtpQ6vND+T6Ln7W6tA81k41
+GJdRsVr5VPKf1ZWMxlY7cU3V0zXM3yY8QBYxY78i2QyDbKoUlyUEt+9hkLedvja+iGpMdyWTex/g
+C/gitzft2SK5XjfRl8JWFeWW2ZyDrhwq+iYsEX22aVta1gnanPpFKfuSPxJFSIIaen7o9NTRpoVW
+fbMwh2zTmaa0+5jm9BGTvx7H9yYzQ5KNSU9okbYQXRcXMETw+stlTSEMaTNgCmmi6X7BINgB74TP
+N++UqtPEuUh6/H3z3EQvA6seVLu+7g5DY3b56o/EelMGDeGxJOAdU0/jgBQMFyPCEzkSSjCGJXrE
+lUN8ICpqBf4VpUqh34XJvDcKqgITApjwQliE1DWRAR2SJFGUZN8Zan5uRwY8osVBwNzLbatSrW/b
+PkqT0xRyI7gcHSnHI4SsKELCjTJjPBZzqAjMu1ES3U5W50Tf86jml5Wy0yJGylZLqdmcqQJvaBmQ
+VcdwpNVb2JJG9sDjlX3HPpOxlR/anD0FWSRy/gY9cAMI0tTTDUmYgTiFSR/eVx0nSrJ8m4d6wAbN
+Q1AMW2zrPYJmnFJm+EDG2IpckGE59t2kb6MXoTf2BsdV7Y0Mnk9BpeBRZAf9o9a6iD0xO0grJHqZ
+yCq/axdGt9OYEzPjnO35rDLTGG7ZyhvdBexAke/miYnbYSrToL5c4/DBHuJlT4LISYe0ZawUK/IG
+808ADcLEKUVnnhZYTJDZDCWnMqnbiAFRXzTa+qSbHrGz1ATnElV5qts6bq4cuQzmk6XZWJqbJAr1
+C7OUmJf6VAGdiVFm1NsD0V8ZfbWiRtfx0aidPkIgJLiBBTmVxlVXzsS4PJVWGjBdTCrKuXpSS4lz
+HrgX7tqJpmHh0XVoem3bMlGb4WmdUlkZ1wUO6m96r+QTzpY0va5CnqOuvpqQorUNclREv7E40eG7
+to0fkcOnztfsX8S8iCcsGhJ5KoErLMb0kjtA6w7Mr10cor4xJYqL3JwfcGcyn8oo00Tx7zf4DtR9
+wms4AJoQXhNoMKNKPkEAEtmWfTvh/NA5NjQo3WB+W81BOny7FRrb1CfTgfKoNClO7yCyPaUSP+p4
+TvxM5Ddl2+HRSqDLLfpyA2HO3BqV3Z9svXNWwk+30x21uixku1KD8tV4NyvnYJ501ufpVZM3L1rf
+Vh7coXifjcO0y2FW8y2o1X40WEtRHXmQFhyJPuFatRlNmDgG9jSOLeDZ1CvS4amvN6G2j0AT4RoL
+a/k8VKwx2tnEil/b2jZsMAy5iIcYhB3IRBkDitE69kP2qbIhSWPXd266Ib2WaiD8WYsZxKgMXLYl
+AKgNI6fwoAs7O8wGywiZtrGPx/5ZWZFHWis4f3XgUUpT0u7cR8Qem7Y5TmqO8NIMxi5taiq+xBxD
+lZMVbEeKDXHpKZh0l7w5mUqq3MGA1XClKdm5tQt7kywh9xQH0iCtnu21mg9IadkMwZU05pZOzvyb
+otag28oJ6TYn8vJkVtI4TLRYbQxVJttpcsZLRx+nu6EZqkNRNe1lZNlPwow1oopTdxq60dgVGHK5
+1enFCfEtPgCOVt3abIodFZ35obSoYuMZ8GLok7JtI5ChoOsC6IzcNx2uJvqth3jX9Cg9SxLaZ4vG
+SEIZKSthYInOPumsaN+YQXiTZ2K+wl1V2IA6icdmpRQHbSFewrBj+IxyrFxA9NxOUqAkNRPNfbma
+fSobqAh1qxnnENibbxqAj+aeAWwR1OZVNVe6jsmFCjO1aMMbRg7R5yhfSSzNwv2wmPbmLCxP9Erg
+OfHonHAXKvu6KPorNcqDexHg5s6Z9Hl1p4ENaawG+XWg5LLidbDmlZSsoiVme7I5g6d3bXLVAJ65
+zLjRPFlwXY5BZQ1HYStsM+Cv8NwDAmaqu56B1B25zcaNZ8GKHr3J4dIMWTcPqRVK0jaqwsxPLDdx
+DLJVkjO7sLM0uMVy8Eh9rHUGsREf7Br/i5v3sfgOtABDadSyuxTqBA+sD7bWEnUnHgqD4mJn0e5y
+BLfzzGw3J96n9V+DDO8Wjzi2N30qdH/gPtP5lpkXB4qNcfHHI72AdR/y+dSTfWkC1ONej/X1B6xV
+QhNWMFUuSF+gXWm98mA7XRCHZAPulW1jThdtWlWNj3MB/1mUdqq8QqBvHlugQOBu6yT8ViUQ4bMJ
+zcslHN/usNhN17WhBXc4AYmFtJUNqcZ0FMGoSMUXN1lTd1akkwMkH8bDuKDqsmoQlzFQs72SZ9/K
+ngXafpZUpmGVZMaizUiHXaIuL9lgqXe44p9MoA1kIJQEInXaJveqwLZVKkP0qE6QKkZZ29bBljgz
+7GxOnmUrmqNMcCyKYk63M0C4a7VuWy8rLOborOz5/jSQrUUaNR4p5fDYkwY9h31x05im6eETuCp5
+zcWof0GTqLi6E8CwVAGw1a4fyjn4vtQCPnKdBVsVzTYZwt4zwEp+aqb82rKmh4CSYMBAeXUMDbZW
+doVlU0GopBt4Kr6DwynI7zp3ccYMSlPowYbqBlR0tr4t67XJXov9JV2C7KzmjgzwEj/08JbhLqln
+3VqfDWFwnCzVZPhMas2o2blhl72aRKJeFZI5fkfMH/eFpV6XOcW2iK6PzqTdjjpxHqNRL+xRnJHm
+D1Fst/egL2e3LLoEQXcMyy2F1toGTQZuWVCwrpu453bjyqafpkPbdzzWQdG5ANfIAes9GoeVWte9
+1WcXk2if2a9OG6anBcTYrGB+KPiqotbeFcusf62UhCUOsGAYHmPZHcIBOWPsqaQOcZVcqZDeAXJL
+bkylVRRrLBKcrzQIVfW1PA2VhP3GMP5apQj7Ki21+hCmrFzGeCiOYWkYvs3qEAs1kedWljxIQodD
+hWPLijBUKhVQBD2j+FTn/jiVc3vMJbpxzlB1bxhazPxvihZ7D+fRPtfMbr/VRD5m3xAMgd2IPj+v
+tNezXSV2HnuB2reXkkkyRb5j6JzTbsTxVxrx9ELaE6Dp2ES8JOhVxiZEKRj2bVgTKQyjbNEvuS3x
+qmytim4Qr6MbVS0oEg1J/nAFlSxnS83BCatK4PZ+ykPHiySB4wTy8f0YgNTyRT6uf2GOlHTbinrI
+H5GIkBV0ySOyJS2HM4WqBLmF66s/TT0lBSenzrFH8rmTyNeEc+z4wq6JcxvtZjZksLMaFKtjCdPq
+IdcbA3o6QpO11zTsUNg4O6c4sqnD+I5XhtFwQB8txlE1xVUEkUYHszfO8Z4i+uYgtLykeBxmYbzH
+HDYOx6Cr7LMkDPy0sHYOj3XWGvIxtEVVn9TBmo098zBQIzKfo2eDYuHmcsYCz4NhcQo+5ZT8AO3x
+LWOw0ccfpNj30rFZHDHHkgvSHAzEZDjlQpHW5A5Fk/VHkVXGeJ1oltEfIoK/xS1rlyI/jzMwjy+a
+PkcI8fEYs5hK+3yYDwlJX/OKPmAaEOTAQjx3MZiCamE268Lrs7+Di8yeFri6frYoz2lAzNQJl3Zv
+kWjzo7awrmXCiPkrj4g+eowWM+wOzliyashah7sHyPw47MJbhwcKq5DS6MAIxnG8OvBJLH9uR7rN
+YQQw2mcUREIdaJfNIMiDUJORckDD+ZoaFiYHjLtBxJDFYXy8GSk5XvmcrFEwo+DD9BK1L0o/NqLl
+JWcAxtQ+c4A+mDRgX7YpuQKWvWhN40FHla2fpom1OFuWsiqqG3We5suAQchTg4IGEyDqneY7m9k7
+O9Kl9GVtlbdWKaed0LGWa+E9uLpmPPSzufCD5hAZOsZ4NmEQdTMuLJVpTqDN/SEn8uyCIYYGCb43
+SeoXbGWqwippjpc7SXgz3lSkWGN9D0XLnj+VCsgM17CJj8HHFaxb/Jp68RFgCy4g6Lt9t8A+zxMm
+kkldlThu0PusOzY7bfC5gc1kuKDJemtLRsIoI3cp0fLI3iP20VUCIqN54JFYQFCwCTryZ2W4aJhA
+VNNA4OqdqpyYtSVW225KHAKcEYWmJu2hrUXpsOqlcf6cUqjN0H3JV5P5OKb9JuZZ3Ox6mfSfMdQQ
+7KfbMNfOeHCMW5sxb0Kssg+sxto2ql5dVQWU3q9G6KSMromgpZ4jcDacMkvO4amZGyu/G2osWj4e
+3LD7pAj2jQ9RGOPFJb7a9sB5O/tUqXMcHsK5U81DQqf4PkXMKg+WGBikwcXqGp0bfRKXWzOns3wb
+IRdKX6cj+OxAWP2WTIW6EXpdPI5Ugt/TJ0u7RG0Ue7NXkiPrEZtRslq8xA40lElUBrGyKpHDt3ru
+0oInnSr7S7x9Gvv/wubUQNKdmc05eT3+6CxER8R+4g7UZw8NEKd4RA42AUjZPnG3Ru4qlg/zNlaM
+BeaBcGoN/2JNypcHUh3I1TG91IEDOYxunEtBCFdhp2OazXTEfDVgZh+NweYMU8ZhMH3HWtoT29D4
+lrGjoeD5AVcNS3OkLTK8smSLQRVxXYwSAvyGbSHLW0Il+hI01hPrrtWqxugT35qesMjPT/+l8v2T
+yodsgS72rzNsm7b6j//bUCX83+6eAer8ovb9/N0/5T6dURa2X4EKrEq8Hatr+K+CUO0PrhlJjgwb
+L80pCMh/+Yk16w8MakTgJJZi5lzrUOovuU/X/kAZ1DUHo7KFn8+y/p0km66/0/tM1UY+JMwghLFW
+R61juLd6XwZUfwicMfcSun1W0vcsn2Ol79qdCiGggU3GfAo8iWD2z2ZruUhZjZruCFST53tSFgmP
+mLDHK9o5RuhxrBBeLJ7Ee4Li0VXZWQCAVcRpDLgDNzRYoN33qk5zfLfJuotYnIkd65jPa5Im05mC
+CBAEO0GIJqdWvKieuwg3HlKFYYybGEPOYQ5U+J2zpYibVhND6GHxD19A4mPUK6o2Dj2DDChTJnVp
+HztI+NPJWurxU6uykHAxRmFmCCbLmLc99PNnxYqg65qmXeJ8yhxm3wL3B6Owkp3inh3lkFxxFAjP
+M/oJLLCxSQjjTTk2u0uktyaEtqar+p2+LHg1XeDrWnJPEQ/bG8zR1rlwltTBMhQ43ZdpJdjCPUvy
+rSJKZWFA1Laalnu6UhaNPwJfnHeJqs6Nb49p9KSnxAPykb/Ilk4xMEnPRpZvOlyIpyVPzbulcJi7
+a1qpIoEmRkFvjWLi+4w7A1Z+tm5EAlNHDxB1eafiXvmMmqYu/J3MeZJ6nL3AKUHuc5Ef8435yrPr
+sRh7zDyx1axfICkcIOMwuRK4+ehDvbgWbRvcdh1gvHlI5bMjU/15DX8srjZhydx2ZTuT8JsGdLmu
+JhjNWtAavqiaHZJliUUbEeVeUXxgSMPDWGtlcgXfQf8GFTAAgS4Mshtxh90UR4McTfaVTZSRi14R
+fxh0Malq9Sjs7RS1w1OkV4CpMfOAy4PWFt/Er7TAlh0QTe9Kpzx09IY3YMEHqhGgiqEZNIw3AYeu
+68+5sIqTzhaO1otXEGFRd+NtAkOZIWtuaF8w0XPTF1XHhxA2Ge1SSsnJgc9oJRtWnU74Lwpiau8r
+5MAbA2QYX4O9bt5aNcFRb7ddQ7wORwg4dnPlJrZFrKr4zqDFrnlR/sWg/GIXiJ6OnTAsqMMILQ2K
+7GwBVXe1Zm1RqSUlYNgSe9UhBoi8jC07FZ3fa41d+oodm0+SZGWyS/SRvUQdiWwqPBS3Kjywel8A
+jNddz4xuGcd4QwPP8GPse9qu86XRHk3mcrSJsIX+UbWOZm0STG5wuxGsniuTNJo7VAXnl4Y/7rq0
+wLa7FZjSSwV7puWOUbiQpsyGpQSKRXWLC9LRPgdOzeM5zPBbgb+wxTdSauVa4FFod1ZtpHc2mht8
+njl66Vr62C5YoFgPdc2SjVmsOZIxKrv2pSeq+YyxrSZrOdjy0QEm3m9Q3AvOtTk1dRdTvmbA6yzi
+l7pVicbXkN1bd45LywEVlrAWbpYg+aTVVXdc7JKb2JtHwN9M4f6p84+bPL5ExjDkkqX6eqd9MzlJ
+EKuSueGQzUBvEavzHHMutHNEYR8i9+8P9m68yI0fooxgKuw4DOOJo/x62zayKsXsLtioR/DroYl8
+J0Pc+XmdDd7vj7SOnd5OhP7pUO8mQk5Aoc1iEliIIYK3G1YfDCEI6m3qQKEQgMCV+W3dJGw7Ky0O
+TR/F3hha1cqhteyHBKvH5vevaA1XvxlR/XxBEkGKPDe7F7m+4DcfdAQ5DGnSxOg81/3BUjP8PVZd
++L8/yt98nTxndRwNKl/q69zv7VEoIaACoMXlG7e0JE1E+LgJlZ1yrUWtuHLsrj7k7dx98N7WceIv
+b44HJEsFQQE4KzfCRu/eXAdUy+GxirzuQ1Jw6SnbPC7u10/nyL1u/We0DZcp0Qff8d+8118Oynjx
+7Xu1rQT9N+Ogtvm5x5lI5VSlZ55ZYLXQ7Q8O9v7Uff8O32Xn2dCEHcwccK+FCisowL4PmOU44FT5
+4IrUPnpf60t5c6bkbUFz2Pph1hvKArzaRW90S8/2pf+8e2r9T6MbfnDavJ/Fm+/f3rsrkyaIjETC
+6xcYeajkHm5Ct/AAOX90pPVbeXsdvD/SuwvTBmXI0OD13Zm+6o3H1n2AdHe1eNanxjV/+t3+tcng
+o8O9MxkYBkORbD3c7L0sW3WneukG+/s5PtC+s/vwu3t/23n/7tYL5c1350wkZdBjWnf0Xrga3K+F
+e/zh3T38/ipfX/S//gyxnP16FGEmSaasR1m2rC48tn1e4X34Tf3+vUh1DfW9eS9s1zVBWVHrXtab
+l9S7/27unh/ujA9O94/ey/oq3hxlwtMOOIijiJtgV0MFekCRPQYf3aHesS/eneBSfXezcJjIiWb9
+yJQ9yqjXeqH71bq0ju1PP8m/POH0jw707kaBFgJzev3U9B2qHLdCDF3nmutI80vP3BRu454a99i7
+8AQff39aaL+/SbF1+/WznPUizdr1ZMeUt0Wd8u9zb3G/By7tSm65JQn80cf6+3uVfL8RC7spluwL
+Wtfg1m+6gqtr2PPQ9ZjaeVCYN6EPH9776GGqvQuU/tPX+e4uYgmtlyDHWz7XLw+FH3uF++14/fzB
+57ne9X53nb27eYxAvBW7Xt/dnX5sH8pzfTRegmv8UCiJ1fN8T7XclXFt3n9w3N8/TuXaWPH2mkhs
+MkZdy3EHP/Kyq/Iy8K0toxnvE1Zz/8fozpxFqvvjo9vXB8d9fUq8uRYzIm2DmnLcbov3zhs35c64
+hMf+0Vnzd8fRMMGCwzGtFY3z6/trUzunQIDjICltNN6j4TscUXjOKfdwYN+019gWdxT8XTiHDz7b
+v7urvTm2+e7eGdfJTBZqfY8+rp+HbEtL0nb2kfYP+j74uWr4H7/cDtrXaPRXyiWaOIy6d//5v/7T
+2611gqZvvgT/uXv+M6l+fs6//8//vivj//g/7S9y089f+VNuEuYfWA01ZhPOT1mJ0+FPuck0/oBZ
+BGgHp5jUmVNyhf5/vUn/w8BTrWMuoP1Eh77zD71Jc/Bb28Zq66b0RSNx8e/oTTby1C83AsHcBd8b
+NjchNVzc9rsTVhORTeQolF5klbhb4MqBDRy7ifCRJcfgPBX95JBrKjLKS9eq6k1AG/aPWA6k8NqV
+SKgGQCV3pkmXyml6hRaqdHcmx5SwS+fZ4GmpmVTkkt8wseyMm/AVfkjh9OAcA7I8VGvWnkmyeddX
+SY1NCczRRu8NKEcZBmU7oCcQ70nrQc/4RkULsKSVvDhTJnIUS9J+Xzqhfk0UPfZKwNIbezIqIBXI
+84tmRnQGTLLbkXvumBBBenSEGPzJJFpT/qRBwkxVjt0KiURagRc5vrIjh1eOJFA6mJKMEnC+ppJP
+xctiXdlImUS6W60wStl3tvM1eGVUirEam418ZVcOCIpMLqhRa28VY+VbJq+syxHCPEUVFP6Bu6lX
+IOaSEB/zQphtj7lqQsycX+mZTp3IU93ThzK80jXTFbQpZg1pw3rlbxYrirN4pXICCsdCsfykdeKy
+DeHD8KI3QiF37aOoM794bf1NVuRnOgtm9ckrCVQs8OBdxpvKKaRhmEEwggfD+Lw25XWarjxRKEN6
+cTeYxrhjMqSsAbTyxhotaOLmQQLteyQew+Kzk4E3MGiBeguXsZ50q31mBPqpaRH8+1ltsE0ZNcaP
+IFK8csWgFtmkoU0AqFfI8LoUjHxlcMdJuLJT4yz5ES3RIRfdDfk1G58zznAGRG4HeLV6RbDSkk4g
+d5yqT07SfLPypEtPYwDg2DNyYgQeJc7Oznmlu+qvpFcjKYNiU70SYOk/zG6jVy6sWBGxgxrxbivM
+Ccc6db4qfLLhFmsiXFltRcxmfRe+TK/c2c6oExi0TFvK1MCXX2ybwdwXkGqjYqZwvkhe9AaTUCgX
+2i2J4vdmdGo66yJjTejZdEofiGfetysJt4sjAqfyR9Mmtxm+u9Oo2T+g7QJzMInG6xlLRzKS9Rx6
+QG59rDn3uN1OrRo8T7a9yRRzx9SC/uS69PHZZRs1sGu3j+Ei2rg4vKGNLmzGcYpI4UTjSit2i6Hr
+5pYmBOdUr0RgG6df7uOFO8PXBHhrPPQivcqU8ZIzHldapa9wYZKTMYx18H4U9TrJtQRD7CTGM5x3
+wMRBnia3SigfJzkV6U6EIIwJYBg/sleucYYuwkljyK0+G085nnrO0RWDzCSw/EZsdEgPU1fH0TbX
+VWpoHXLxZ6RLzIMNL6S5MJa4By4JRq3Ka+VAZEuu83E6lQ9TTpvFpLeDM94yyANl1SM3vqCI0S2j
+zaEwSYayYgVYY9ROsxzgus7URiYENbzczqlsAIWjRsdRAY/VXSiRIMhLo96cnGfsdWJHEZ5wTgEc
+Nr44U2sYPFYQ4RGtYZZRaU0nBkEITYfP/MqLBoFE55QaslQl+sSM3IIqbdSvgGmq+6BNp6/oaTg/
+0z0qXFo9jyuhGrfFdD+TM502PdbUlC+uxpUJ0AeyNdYpzUWIHO9bq+JfxSsGW31FYofQnKG0disq
+u4wDHKohY8gVob3itMtw0sKD9ZOznYDBSDbR7MT1znyFcQuBr4EKVkwTNvSB/lAmK7o7ZdJZXxk/
+md7Gyvf+aXhVcfas44kVAT6GFWYDYvmgwQ0l6rpd2zhMhh3Pqux8qyrEDhEpL7NqVj1ScnKHTTnE
+ktz3T0OUXWlq/hhE2XU1lhdZ2Pw/9s4rR3IkyrIrYoPayF8n3T20SB35Q6Sk1qQZye3MUmZjcxjV
+PR3B9A5H1nejgEKhCpXmVCbeu/dcmEe5uk/Mgbbego1X0VdA1zb9cKPFfWzHRaPnZ7cYplvygnTj
+l4fM/ki8D66KOlqQjeXZVx388VpmjPHggporOvOhidSHKSGyMy2og/rDkF7m+CgeaopaRy1F6DXr
+rhfSpb1Lk248ellpBtRh4WchFwpZAxwItHynSTcgHY3gcTSRL3DhlF4gxwKfOGq+I4IcOtS5jfsX
+KNyNkZLIEkf+o5GQnjrZowxTfsRlH5VfqgZJRw+E/CotPbU322Y8Ln6ibtAPTUfPKs3j6MzfMtV+
+aisjDtC03PUGToV21tsrFSv9fU6dFt1uEmKC+ljVhX5FTsxygYzcusasyJwbxenBdVDlufrAcidw
+iSS84gej934bo3etWxmqL34KKamW9XWJkTAzyXGwWzQjdJuk/OgPIKaniEuP3M7dpSaiwAIl8GOD
+EufgAcPfL2kWLon2A3SJQFLpwg5Bd36X2ObXHpwDOQ+Rd90hbqf/YDl3PQDV67TUx13RgJtSqZsF
+ws3KC6p+GeLyNO3fQ3fIHkZpmz9As2efYiEBnxloy7s9mgP7Hcunc5GU5nT3/D3gKXfVXvJeP9m5
+hn9aGHp3MMrRJeYIyOpFR3vnC9AXt9/pE4Q5PuVlOIxqWAUo2DiesqQdrovnWF8VV4g3ocfN7w03
+rj5Bhi2/dLLDB9V05ZPuSJpf3jR5OK0165GVAyBCkgztL96hQl0h/ybJpNbHTxaggp9yaGcBGnxN
+IbaZcXlljfgReqPxQBW3Au5eAtDz1/jiFRjQB/Oy/CJcWn/wFhdAjNlqx26atVv0kRlpAXHTvF+b
+zPneTgwL4Xls4LdFPjPsseJaiOuYrAgxYdnCZpv3rvYJHeVPF6PQQ+JO0fhRa7vaJMEmKWJtLxOg
+u+mCDnY/D8BDYBPHtbmKQ3TSe7MkfR8x8eJRGQegz1N12VpoqwOYJvq7ibTK73A6igOLnRmO1agT
+VqDG8iPYaUOEvTUP78vEh/QukTxjHuji9qIdAUmmXT6PAEE84wnlYAkCPC5A8vhwhUVUdndDrZvI
+wqcGpobVtd915jraRfU8ZPxOOQ8HiVjtUeJsu2Y3pJfhLCYHQXaqTJpVi9ntBDKA77mQaXGJuCWK
+ICuaScfO45nNXEuTCbPPCewBQh7HP5Wns2FC2QICHR89ivdCOMZVBzyQwrZkWgYlk9LzQ2SOC8wM
+hVZYJNGVokwfC3P54fTJl4UzYSDt8aqQxQW6YO7ZAuzi0sqHNsSEEn2zoYiHmuNfu/ryYCVsp3QP
+XaFQ30leA0eDXEznu0JWzQYHGJ5+NzoEhq4kpDUFoWDTdszZZh40mTG//yfUPeetP9SA2xFzaYM6
+AAllK1N364YO+iomLxsYeXFFPcPb5x3uLJtVPujj6qEHnIYCjGwt1U9WWLeJj7A/BsIIKWg3sK1H
+1986LZ82bAnNrWg1VwjRkNvKJfCntJoCzbRrRa26hEyag/G4Aa/XZp+6HDTDI7kt4EIzLwN97NYk
+FU6WB+Xa4qTKaZ9oW1pDJQBKgdq4qtE2DTZJGw59GxCbZf0zS9CFt162r1oQrGU9is9jXApsmQJ2
+8gMg0fWQYOG+u/DNuiS3einbz1IqwhxBJ2o/iangZsxVuQgOE4leH9oE2X3YYq37OY/yk5O54pK5
+175v/cV9AG/jO9/TfLTNa+Qp42fbTptjL+vhGz4ctz3kjBbtbJgB9wlrzZMJBe8O9U8nkJBHd4gR
+l4iPuam1K/ibebK3PSytwUKnKlrhBN54C64S/AeJZSU1EM/rzCP88J6gRXAQzifEPLCxiUov/BuU
+idNyHJJZlyD19JbwKuEwV9WVBErgmw190Q5bS+Oovjv2bkLnGNR3rR3KwbQ+aihpjxY9+N0aDqDd
+ZSja9hU5SxDwzazpb42KW3CRT14ZiHpwu+9oHWsyYJukDzPL6VWAOMBq96Y29R2bs6W+J5RN4C4v
+rR79Va7Plz6qaZqhyDVz+qsGOEaQBjarrYmwao/cXhFy5FiNvGvEAiRx7GcWspgEqn7N3i3R+ixB
+wVmXFZ9NOaGVtUkWB9EEzYU3lamHhwHgehCRooOLMcIDtLMACUETAl0C1wbFls0LaCTl6gh4lwkT
+ICHUrAGzJrKl5IbitnfJF16lv2uZxs5t3Gs1723k1geymk1OF3huWnEovLl6Z9P6f9cLk/yLHjY8
+NvbPPe/aI2mbBiiiiCOnsmuL046psqNq8ssoZU99bUSjP0Ai0ogS4NKzUJcG8W+aJIxJJaCEdOBI
+90PDbYIHrwfuJOJ3jehpmfrVRamNAHWN6clrq6/kJUowkFJ74rht/RoJz0nva76n5DHPc8giQiP9
+OutLQtTj616VpDrXBh9KFj8sbY2JoP1QzBbS/kZcefpA+TJvfbRLWhZmph7wCEk+SCYFlrE6AAFo
+d8pA84TKzdzJYnxXUSIMF7Mf4D3MTjC2vbvDqIS3oYwfG1Tau6TBgq11/sh+b+ryx9kvr70yuiKY
+CxGrN0xsHmOiHgLCT7Fs2b+QQfjePS+onEkq8PE24KHjrI+iw8Jv4KNMLswIKgtO6Xp8ZF0wQBbg
+wLuM4OdphKtOGEcEKUvOhyQ2qg+I1pY2HBMcLhyU2r6+zJ5nwhmFiBnaYHW8A8tC5V3k1hL/nIXT
+5wGhPgXxZrRwDxpEkwQOpgA2j3KMXbPSXfPJ8xNnwMETT98V/7reoXqx4ncYwBHj9lHlHQVMUvfQ
+uiugTHpGcdH5kl2j55XGHsNHnDwMBdbWgJzDMbm2lXCTz+kA7inV0gtowxFfY5J/4mF55gcpRFqG
+7kSHc0esZfLe0H081X1fGp/bpGF4kCkpkpNjmtnLStmld5YibSsiI/tYDrBQQ8ShTIi8BSs81wPh
+Q5Ot6gLmCDg43ti49rc4H1ACpYuHIQFCzT7mIDYFTSkHQKd9Zf9AUqMhinPhUL3X/WSYbjXO4JdK
+uR2hB2l6JFwTrXyZrWESz1Wz/y0mvuBaIjh6W8R2C4i9Sv7v/3klX/vP/+u/6okGJHbo57rl2Pzt
+uWj4X/I1SOxIomzd0g0so+6qUfv/9cT/0B3TJCvC9g2oD6BmX9QT9f+Ah+vAcPf5gS44y7+qJ76u
+JpI4bdi4n931zwEJsS1/m9nAL69JSOkyrVsCMFjpl3aZSzsEUmc/tLnEEpl7yVDB9iHd55+i9Kua
+9EuT97Z5so7vrFV34aL8cMRzA/pFmd8ytdxWA1RgUGUP1DzzDwaH4VDaHQg7RE7O+9wqE9KFmFWH
+gwnWXawBU+1H4myr5u/6f//8GKomZGH6Bvd2U483C84ryNxggLZsUchNGr4rd9YgKE3IheYov+29
+Txhwk6sXNeiHf7o4L+/C2od70dv5Z1xc5w6NTZNMlk1DUCf83eE8iZlmpl0XDJQWl6MvDWIO3x5o
+bbptB8KGyVtlWaZDBZn//uJul1WVQVSoiBnqx+ijnDOLU4ThA7ZJ7VEc/36wVX251uzQYsAZeTXY
+YJuwFwYIZDAx9auGGMA7VQktlG6tznSpNs2x9QbS72MYh80x5u/1Br+4LiOyHSR4XJcgAfNnNhjz
+R28Q8phXRXGRZVh///rSXAr5tuBDhMmibxrFhU022Dgzg7u18EItoZBKlWQEyebZf//IvJWCwFSB
+kMY3N+9G6gK56IcMIcts42u2p3EkiRH24iU7lv4vNTvrjUTIyoWBjdHpVmwuDCW4W8QkLe7AOWVB
+VCc9Sr12UoCQvN78OSAf148t0pt/RNH/4zywaWo8j0vYCEOCVnBBybx+gNiNjMK0BOOqqh93E765
+O3PWy6Cr0uSjgj5+48lEu//rx4hsGD2eYO/PP2w+Bykkmjcq/jte05modL5y0pRQ3wn2Tm8PdeIN
+pf1iO2hKmPChFLy+QHbUo5DATnZRv7B1HhfzOLvSuxi7KAtVFWv/JKX8jzf0xJfOwoG2i7kMrvJ2
+vFaJGC8CXDFil91LU+O4X8ZO/W7x6Fe8fWknZi+PA5Slcw9pdG0BQLbbmpDzIzbLOATv7I4gMXij
+yeFfjAJTwTEdNvb+th+s09BB+MtsAgi+RTmne9ckP6jbt0c5edtcnWASBzudKTZfW4+sqiMvnVEK
+ZxIBmq9ivrAhHXPkdzy9PTNFnnorkI/bSN4N1lmW8lfzlk6WUkfBbH0Bh/dyWB7LmiQ9t6kAtnAi
+P/OgTo0G/8LzIWfAvrY2ozVVn7kWIXooBtr4qko769Bz4r/Up6m5XtQynrm6Ey8GMzJfMy1VxnQ2
+op1cmPAoNVwcSjYNhMBEN2UY10Z0Tn134qkxBLHxHpJ/G2Xn69s4NbaRkBsB61giQQ7pD4yhyGuP
+6k8ade/ffkVO3EVuom2Y7uouMPzNKxJNxlQRhIhNjlMHdkfdb39UnQ16OiIu0N4V0k7+fnZkxead
+R7DKTtFeZ88Xy9tSe0Rgwj/eZTKNyJzjHLZiE6EVaXs7ohI0TYYK377MU/fUYFu4bjLpa69E9pdj
+JkMGI4oUlZ3oiyuTQuO+KMFv57Z5Tumx/kmbTQnL93+PtGlou41OcorLDfXpB1GJp7L9ifl6KPa0
+soxuNwBSeQdIqTL2mZLOuZfnxNLjCyYvkvMcLI3P/fYXNxcKklckvQH4cFoIe54d7WHBTBa2Tt/u
+VzMBlPU0+vz23T05qLtOM3weOEc2T7QrfUWoNF7LXnFTU7/IP5az+zFxqw6PcWsdFFzkM2Ou93F7
+n1kImEHXA8efShdvqfvMgiRVVi19KYCtfjMVn+coyX7UpVV+dUod3rimd5fwB8ozk8+fT5m3aGXZ
+UVHl6LKdDHQix+CTQzofxWQ8Yjaed0XSxdAY2vF28bRo30dtf0uc6pmV8M9ZaH19+XIc1kLkFJut
+BVQKOG0TITXQEqz79VC/z6zMfHz7gf45K1iCvQRiZ5A//OP6K168RVIQ/JSasOfYYCdfyWySSYiF
+o64OdjTVX4fRic8owv68oQzjm8wGLmuis530Evo8iU69dVcO1BowGFXOgw8vEh9KbqcHx8LLI6oY
++GzURFl7Zno4Nfrzrt5YxfNIpzbXq1FZQpKJL7ppsJUIrcGfB48kUQEMudQgtSZaVEj6LWVe1WrG
+r7fv95/Tk8Waoq+rJgsZh8fX47sAadk2M2mYxK3A4LS+5Y2tjiauy8Nfj4S9yySeYh2Qg/zrkThL
+mETysGoSeieqsFo8LBVY+qEzudKZkzM39s+v1OI9WiFS7Nso6m9mQwJB82waaKi7pBb8ZEHBNp/l
+wG0jYz8MVX2My7l9ahSUairQ9qe3L3a9ba/nCEZ38biyGReQ0DaL2zC6APV7Rk/w6FwbjavvSDww
+//qTXEdhf8pGWPfR6L++pXwhXkoGBztGpflAnew7GJHa5b+4FM9cv3rhmgTvvh6kh2OKhIFBXLWA
+DxirCMc1CZLJmYntxJfv8WYgIFwD7dg0vh4HVplTkglKwIOObsFv3ezoG5jzOl9MVx4V7b/eolre
+apDxeEB4b8Xmze8pA9bwLcio0uhIF9Ir7pxYqj1KBPvh7Vt46l30XIdUQDA5zDabSysJQeb8hfJC
+CNVf6hnRlBQXytCcVXEJlUG/aq3BeXS6rHmCL3VO9X1ijmFbxy3F0QGw0NvMMU6RS7oIbMajlUC2
+a3EGP4DzgX2oT6L7YJqag3XdTtsPBLfO3ZmLX//0zaeAXm+ttFmWR51tMzrOwgYmK4QTg8r/Ew8j
+BZZv8jEGI6KdHlVUnr+LtYms1bfv+ompjYF9+Er4VCkObl7cgX56G0sOBbNB41bjF15KD0aAIcb8
+/dtDIV/cXOWaqgMqln3PWoNzrO2nCFGU728EAN0v+ExbGsPklxg+xYx0NlvzmAirQsBnGgrglDfE
+w8HLCyjVveUj7HPm3HgSg1dXATKCejmkZuv9quZmroLMURPtf7Rbl0W8nmZkmZBZJXV4/a4BJGKX
+gljsdvOYFlEgdIVsZ5nkDCF7pJGjdXRC9iVn22zXy8T5DY4ro5BuNKW48PqxvXWVKUSIWcwh4xE5
+009ESWDs6HpOoJhaJTXwlA5/LM2D6VvrpsUP3ap6APd+r6/9tWnJg7LvIaEao2l5GONsDflt7Kmb
+pJxScW0IPW53nQllfVVTLcfOJb0gKDQgJ6ApdDPeoy9p3hkZvZSdnLv4/UwvGyEkl/l9GGzLZ/op
+yD1cRlIqCBtziRCjPTMGFR2vr3acFT6JQ7YLWB0015VezKg/bH+obha3QoJExti0h8GGd0pjCXBw
+MAISSaw8XXOHB8enWgitNRmR+4RTq430j+O6LcLeHocrfXAggguOCFpAFJh6HDiEDcEkx5aECa+o
+zB35GrQxhJnX33XANfAEjaFsDiyw0RBgC4UvgDXW1ndmWU2PhZCCyLfRz3EfIXpoQpXWTR0oOp2g
+dX0ijeAADo9JEWl6YM7mcJ02bP3Z21vMI21JxFlbWGYTkpZhgn+lXfShpI9uUoBuGhKAtP5LV4vh
+s41sDVnjmGZT6EWrQtJKIuNHJhPlhFLSh957zoRHE9EG+ceQ5rrpkLk1gL+cJueDdA3UQCTvYcUi
+3AJKKj0gNkdYfvM+TARW0nAyqmmGKjL3xGw7a8u/ovwEgqDtnJi0wkV7SuocPgZ2UtLdSSJaiG8f
+YheOVVm7A3T5Zhn37FkBhdVkeXz2gAdlIakxpM54ohhHZJUNklm7aL3HsrWTHhy31n6NGoru5JX3
+y12+JrKSKY+0ZGcq4UD48CP/Q+n3+G0t6djIohY6uih9tfbam9GJkijsK4J/U9W2gQ86ec2rmfsP
+UBMlDnR3Gn8ga2sBy8Ec/7qUIvnA28BtQHCASiLTpy+ODziOJLreN1eClG1e5gQQIHxIJJn3yJW6
+/puKLF39xixokZvnOopuX1fr5Rq+rJowIiekOMqqN/QvpR3N3/qmq2JiVJqkgfpGVui7BshIfqyc
+pV8pgz3HHah4OTYCI6q7oxIIJz8ZCF+1sC7cqLhqy2meLqTTpNa1NBG4I12YO5KLFK7gL7Gu0oek
+Eqh0kROgS4XUQmzp2OneZ4XP39jbsiSncnH1YrnQqLbpRLt04t4Ss+PeD1llfGibBBUJhMY6uYgc
+2D1hN05md0tcIr7uGI96vifsO6kfhoqgkZA02vbnMA2lFerZUnB60bzR+tXyFpHgVzjR/HVAHhBR
+sUzmNU0Cve4uQ9rsX6e20X+b+ffqPpqp6NxHTUHrFZKyNTRM69GaCl05bpm9H4lKBOxMj7q4zJgB
+BTGOGO+ObVWkt9OwTNjvS3act8pxi4HAF9tWQTa2+mdtljLa+dSNaZ/zgrcQqJZoONKQpb9OPDgC
+MS1vtfvBgU69xzhMmpc3pBOuM5UieB0zDdDNooNADLtlHqJPeKsFQeRubTy0TdOiQeqlOmbAHIbA
+ElpyI0viig4woZEgEwHapk8tENPkzgeosfA/Zl6zJxlJWJD9cjqnirwsdT9GkGi+wVizrL2npy4e
+19Ku6oAw3VG7GbLZ/R3B+kBUnPZrNnYOie1Ax2oSj+RYp/21O+QFoneXZ38YfVP9thEFk2ldQicM
+8zkaeh5IJDJSEY3sh77IJkWBrCPrMpjYvIA4JNrT5MUpHfmK1gjUdNGKaW2aWSNLYvLfmYSqRztT
+LhZguY5eDehDfUpCp5F6CgJ/aKGTF6aEqVT6JW16eh+gGZeifBKgE5gbsnZkdzLUXXGcZlMO4UDf
+/nOlUeWDYcQlBVHv6N/FsPqUUgI1LrtoIVPeiQwNvbqf/SJlcv7sxiq+dSMzuSertDyYhZ/fGwVE
+6ku3HFsVVL3FMxLFbC6HvkYOGZRgFoc7UaIpuazsOTNR8RFnTAFjnvXDZKpGBoCURtDXToXVtzFd
+pAQGzLEiXMjARDhJmEV92Zr5MgdTV/hpYDqlM+8LC7jCXanLEq3GyAJKSH3qib1rD8uV6mWeX4iJ
+TDpEaTgcd32kxQVd6xS17VCQABsS/m5F+7rUcP13xZQWwK1ryzuOnkvCbE8AJD8kJ2bgkjw+IvQq
+1Dcx1K0GNhbfK6p7mv5Ne0lpw36vknQQe5tse95Ge1lozBNlZO56h8GCwcdqjZgwxQgFToTE0LmK
+nBAN/QhTA4Qibim6h3co39hnNHqLOi13yUtm9bWXX1GmGbfk/xSCQzW/Dg0NgiuD76K7ob1e3Pd9
+TCQpTvwmJ3ahZRmTk140e9Zha97NcwTcG9Fr87nOdPOx9Ga2GYmW9u+UhSQJKK2Did6yUnijaRxb
+YzDao/Wb3ofA14UkmBRXpJEAJj2rSIAC9hWBF+6kE4xsF/rONtrp0ZZ9kR8kaLN8JxMzFYEmOfbz
+scvpBneAblDJUvHvxBbJtwy2IWRHPizoC2VBW6OIva7aM3U52cFmakfURHtzPLIGZ48L7FBImYPr
+3gsH9FrYyJV2UDqN/zXn86RJggz5E2EhHSaLWPaALodWPYAKJGY48YbphtAUGqhVkyIZK73IeVCo
+Jm9AJeZf1KjEdzRODiltpO098fYilE0dr7qaUJKxVjpjmwPuM4nrThdtJt0INbgF37et75TR+Xfu
+FKPA55hefO2aUnG/hq7/gSJRb/ejZwoSsKVbBZMAvBsUOj9mN+WF/E10X/exasYKdXtnQ+q1oh7Y
+UzGUKzBE2kDYtPgHOFikjqrho0EhGfVGkLW6vCUsJSEuG/wIWs0I7lQXD8oNSzYR841lWOnlWKa9
+DJs5UQpAVQr30Jfw9fZN4bYf+sWz5EWDwhUgbM98vxsbDtl30yISdl6IGftAjdQo0TXmZJI4ZVy1
+bMMS4lT1qkFtpy1Zt+xMBLqQmoBgEI/GaVNGOZBabjoJuITTsFeQxKAB7rL2UZMAZ1a08JuAzi6n
+Fa1H4kc6TsfWc7EXRFzUdot3S7egLdd0aS57CSrHuqBd1H3pPWbusIoQuoSaZhbWwUNwvACd6HQ/
+LCQbBtYMmX3TiLyF2Zzn6bBfPGDM1BVH/tjaR8Mj6kzzV0LuvAS2sdi/Y4Xucq9KcH93poXVhT14
+SlxxPCcFGBeDuG6Umwm6SW2eEj3Uloo/XVYWQh8miCk9Cpa+j4jm/YUIazYduHCS2row5i6z8UoM
+7HLqNkVI6EZy8kHPgEoEOtBFnxJYn23AFqz8WM+yYOsprEW7JjvJdUIsVe27iNz4BU8LuInArlZZ
+FWtFvByG3qyacAIBdEPygt3sESw3qOzcTuiBZwOq37XGMqxcEq/1rjw/9X6xv+OLk5HJfnzQ/eaD
+RhGHDGFDFw/KQlS20wm8eI9HwiXSzxX977yUvr3TUoEiKBtIvQm6fiasSM+T5Xc2Z/5VNRkg+7x6
+st7lvVxul7FQn+bGaWZmL6288JYyRkE04N8K3NLP0ABFpneATuSal9KI/euphvS5c9Ew/YYd0yTB
+AhRzChx44/hBQN1nAasmBwR0RXESaD61R/b9DmShmC3oTwdQoWTKy1N0ayIiKJSwoKwLWM4QWlWi
+QGZK7vZK4fZ6/k2NuxFWa7pK5aXC8JRXLfJdyqi8YhG/fE8eQuKCyJmwSzQOGMF6Re0GudJnFSil
+6bwKS2Y9eV1Tw0li0uPP1hCS70xjiVfFLBGd+24a0V2qDDWtiB1eaJiAaIMzbdV/VeM4fdf7joFj
+H+zGoctSXstcY8VhI2mrD2qBT/dgeTF5lLWf6EithxkFrDsiQ60qjHShAJQ3MOMlruB00Ktf3Srs
+U4XPD6QSyElFUmXFjGU+i5LLPrrPEGR/1KeKk0sNCp0jg/AzjKwgWkh9KCaux4rB3wUVyRYUElr1
+K9PX+1g7UzLs+1hHsaYAQNpBZnccdNhXJY9oiBeD3T5I8B35guqXHtv8SZpHfNJlXSo9vqwynxGs
+ZcBJxmrn33SlKsUNDhouh32ufwOWiv+9jxSusrQgD2LP1nr9DgflyINVLt5hjuoGam1jGL9dkjO/
+v1132FR2bFQTpNPg1YTQhenW39TkHQJKhsYSJV+bzRkJ7Gg2XugxyeDUz+HiIVXiQGbDwJuKptu9
+PfhzbfhFZeef0ddSrg2iH9fmprLjkpfbdkifyW60NWZDssM4DJnsi71PbQOwpB1t8KxDHe8L7khY
+Zd58rKBM7U0VQ2WZne6zZvEOnfldazntrd+13rUXPYRKb12HanpFMWNukz1J2FgiS7+a9sCxfqdI
+9G3eby3Vd52gwk7qXbXPEezuupK82whU55e3f9GmEvXPjVo5OThNV4Xa5gcBqjbYOGWUvksOyYjO
+FZY2VgPagH3t1mcq35tS1PNolDR5IaijAo5Zb8+Ly28UKXe5Af9yzhzvu52CF9tFqlSILCdn+h7l
+tXmmdHvqNRRoXSjuuasQbVNKJZC1J6DOY4PZVuaDC4xwN0aGt48HLACz1EkRJR4TvKt7Rnjy58AU
+FC3su7yBjL9Vvc2u5hSigf0zVmQyUE6db2c0RdcT8vRDN7UDtMu2fUecUHymuLgp6XKTX4+8eaRe
+TQ6MXtEE7ORMcmcNPNW/YyKY7sHEpmvw38Ji2xpO2nws7c6UlzLp0Rq//WJt2gz//AoUjs7quReY
+qV8/agjvNRtuvsCCNXSFJpv3q/z+8u1R/nyhuFbfQlZhuojC9M3jZejU8lu+J0sZw5VjsIqj973y
+WqXeC8sUZ96mP28tzU1eI9S+gp65tanbMgE7frsmsC3816/auCZq5O14FLkik0MDaYOBkjXLGcYQ
+097f5uWsT1YwpwE9Ml0m1s3VejZVo1Lj8+kGjq/DFPXBaDFR4Zq8+Pv7yl7aQMyGUgyFx+un1/h5
+103EEu4iNNyXRRYbIExUTGFBaJyfu1yIu38xInhFHZLU6q7f3FoDkmLLCbci1lxTPyJCeoHeZmjL
+HTyXD100e2cUF6deUJQkNHVW8S7Z868vUSGQwS8QMxV3I8u6vzQ9rkLRy+rM93hyINR20Chtm6e2
+6S6SZ0bikOReLrhj2LyRF2pORBn+/f2jW2sgIkQUZmwhPUp4w0KuNBqHMXFWAKG/XGCI7/Y4eOuH
+HrfjmebJnysHYDGEOMgJ2T7QIX59/9yaAursra+IIf1HVS2tRa5VLLT9WJTwqt6+vE2r5nk6Idpm
+tQDYwmZOfT0aQY3FiJCKV5/0g28phihKZDnHogU2f1+xP2KPJj+9PeiJOZzVygBsxgRu0SB+PegS
+eYvl1AS7e2mSHHjEEckVc7Qjhu0AKt7DOmPZR9ua4RO+PfL6fb3eJ9j4YejVIOVgbrM3cziV0Trx
+Wr70Phq9J9PIQVu2oyEvuoXKWWwl1f7tAU+8pOuMhlKNtiOPdP1BL1bmXvmDYydUP0trTaRXlnMY
+Sek985KeeIrCBCDl0nf2kF9vNoX+HMWrbWMVauTGxHYZ+v/Rgu2JJ3yYox9EXjvLLjHGzD9zfSdH
+Zh2ySQZmNRKbDWHkEc09II4mxk7qX3qAnPgE8yi9nxEGfWdlwe+IX1tGZybSE18Jw+nseGj1ccWb
+B9nRoRDDyLhl3kxX5P7KvUvs+aOPC+3MhHbiEhFZWci5mMxg/m1Wh7bQzUURH7GraZERmKFZx8kh
+DWJHTLv52BAS9yU3/HPamxMX+NwZR02JDtxcszBfvjhOU42+L/lGUp5dqHeYy8mkiI5YLJczH8WJ
+d9QngdJHY4QI0NoqF7JuKLtx4QIjkmdCfyCZWrUEyfztl7DqTXS6phjNkYVs3hRdUphLW1RxcFHH
++1zl1V4kmTyzPfzzWhw2RwZ/MXkiINjMniP0B8rJfrWzRUcSslE5sFqTc+CqE6Nw9qGzzgqOa8XZ
+PBwqg3LikANydaaTct9lwFbCutMgOPz1TWNeNujlo3PlTdh82Ja0CVNwUNAsSsfQtJrN6mT6+vYg
+f06KZJCy2nhruBsrwuZqcNMAoqXdRXHQya+YO9N5TyeBqwOIY+5zKJ/z09tDnriBCL0ozCG/YtJ4
+RqC9mBbTykWDVLCXtizOyl3iNYdmnqbw7VFOXBgZiOx8CDqxXXs7ikKTH3P8R1/iE9VSF4m4QUrX
+k9pBiZMo4nPSxNPjcSxxn40A23VNmvooBA0rkoA0eqFa0cUC7RNOwD3pzPXjOHXWj7cv8eSNXEXd
+LDIoHv4oB5TEYVmrMnFOqjTEgBOHRT0sZ2b5E6N4+BJ1x0GjTtD35qui9ErZemJ9GQs9evAmghj6
+LJ/PeHnW9+z14owgw2ElwUdELq6/mSEiNxliXDZQ7xD6H5JiIp8+k+o9/ibINsoT+DrjqQ0xapbH
+t2/jiSfHbgsp+Zrsa4itrEqmetq2yLWIP7LjL6vc48sy+nZ/KGrKeQRgKSAybw/557KCOIcHxnEA
+wwget9cTfKJMPNnuRHK5VS1HZzSNr4UGgORGMykZPES1tAwqsquV9u2BTz1M114DFpnssQRsPndc
+QOxf6wHRRTJgknbI/u2bRv31NpbLw4SHNwvwFwv968urm0mMvjdSzi+86ki/Ek0EUkDBp1AUpXPm
+BT316qxLM9Iu7igC89ejjSxqlTcjBYG3nh4z1167OqlmA28Q2W3VxfOtQ6PsSANl/vD3t1NwG9Fa
+ebw+zrqQv5jKRCpbet8O4aogLh6MUuA8ng33zOp56gUVYOa5Qj5C1tHXo9CMazD88ahKd8X7VJr2
+1ZqQqc653V5MmnsOgPnn9oN5mYO8oJ60Gps2L8my9MC8RpQ5Tpk478zZRtXkudlaUUpSvT/zSm7B
+tSw6DEelYd2C8PetXC6d5jzKEgsa7xJJtesQ74zk+vhTceEQdFXtx5yMGl1aHaleVd386CYEuzuQ
+Ark881tO3OlVPsaRiBvN8r55nosZW26zIBKc0bITqHZs5HzIzHoKRVyW4dsvz1ZEtl64j7gRc8Lz
+krEVkZUq7yjOUQTPjCgG4FaWUUYnCeoOCQf4gwBUAlEActsQUXdNInf72Wg5y+1yacJ8oWLgVD+M
+ZjEm8sY0J0Eswox1jZ8fkUvE8erMh7Z1nT7/YBtnOHt9Hand1kw0lX4Suzr4Bp8vutynctBv1VRY
+R6Ti1UXkxascq+2PCVwBzBZaC+ggnoVBhPjojme+itO/BhsaEeou68b2vcncoSDpGsFftCyov1Ck
+pM9uGdsJyL8Z7nl7tUtdSTpFRUtPtiDPTZOkChIuqv+dNPefO/Pit1ivP9EEqXaGBnhltIF9wj5Z
+wCI3zx0oT72evC+YUKlWMelsnEH1DDxQ2IwSD20S2J3f/wIak9/KXo+vZM/p7+039MRqwTbN5ZNk
+UUYtv/73F9Ob7S56jVkHIasDGaPTCBkUc6nO3LsT0w2jrI5XTlo8ys1HN6GxLKaRIwgykvYpymIn
+bFsz/obD+dwu4+QFcZxb6fWA8rcI4TXynLhY9jJdI/Iw6mgYddByzuxlTo4CXpHZjKrKnwLcWESN
+iT8NdVOceodqmuwx5BAHbunt53PqznkssTwjfE6UNV4/n45zg4fHk4FAHx7wFmShqKV4bJLYev9v
+hnIo0q57dtwor4cq+6lHk8NDaqahuSc/CX1J7nVy1W+r7OO/GAzjFsU9du+kYb0ezC5x8biwYaCz
+NMlhHAccRShgQhAO5eHtoU49K3Z/rK24Ftk8bF6+lYDk9ojEOIw45WOup8SuefIcev7UhwsxQKyF
+JxaY7e62KqRLy5L3rkJB+//YO7MsOZGsW0/lToBcRg+vjuPu0TeKkBTxwlKXgNEYvQGzuWO5E7sf
+ntVIoazS0v/8v1UtSemOYxh2ztn722I3EpGFZCjX7zN6X4dmTIr9f7+sv1sZtBGxoDkgV/Hx/PgL
+2gOExMpjUgjUEknxWonnTqJnoGTIfnGzfr42GjGYBbZ0d5okbw012iFyGYxmtYMG3B1JpX1QAXmw
+w+qdRJdPv7iwv/m0APE+ZqGQEwpejx8vTI+2ga2742yiDe9yE4w+oWSC82eO633SZskvjrI/rw+P
+3S90t8MJtb715vNyXGWOaSgkJX6bvjTmijzHtvTjf79df/sp2Ed4jKnjfkKbG8bkzdBssK82afEJ
+QEl3CyCl+MUb829+u+2ARZOEuoO395u1ziBgTZsAMVc9LdO9SY40AUu1bC+JR/Q+WG1S/vnbl8US
+xK6Ca/Y8QPvxZtleecYtUwcsDnVAZX3NSRf97fKNUgNS1bahM3B92yaxjDGBIjVRORJrie0yAeRX
+o9KJOrzcw05wz37xO/58t9jX0diHlKucW9++FluYUe4yMe9byna89leZ3IhR2/q3d3ffcfHn4otj
+d6f0/vHXCyrDnIKQfKHMHkinKqpva0PeOrSffzCu/6Pr/acL8pBb+TxOVN/WVn3/+Ekpcl9jFG2z
+M9slf6mU0cTFkP2q8//zQZ+PoezlPBGiicKp8ePH+EAt2sAHPwL80iZEsg6kfaUXXdg309iUG/cr
+NIpYtG4zHyWquPA+SejpkyHY/nIa93fXvG0hFP7sJkz+fvwyxD05OSCvZreQDa8A9dnZtZO71e+e
+BXi14BplYbJBejgpf/wYsTDKdLZuofJ1sA9t/a22RXo6P2f/ixX6ASt0bgr952y8m0/E4h071ffq
+/3wlIG8sv+eV077c3rr/4Au54g+QIMxFeavzzqK//29eefAHPYtN10CPhE719q/+xRfy+TNuKA8+
+mA/hb5yjf+XjOX8Ij4Y9s0/Bhsfd/h2+EEc4Fsb3DTGBe+ts4OKoyuPvb5v5d2fvBEgcPBsCPLsS
+R9AO5qT93MNpGQ8m6lRiVspu/DbpdvkoR4wQ5PxaA66U1rxoLD1HpAKb75iizXtyH5dTreWVAQ77
+g4m74kvaBcV9Aef5dhgtGCxzOl0gKCZqrFXZ9JA5dmnBzeTgv4Y59huijhCcJpP5ujje9Bg2NOZm
+WdUf5rDODs0gcewBayNaPEH5lfFywfvtiKPNE/bsWEWvd1h9+oMe+847CD8tyHIee/+DVQ+djGof
+GPE45sULA8PQ3E2VXE+EdaqvgS343m3jv+TG4O95rz2qMETM5qwAhbeDwnM/5SHxoHDclYdzhVYm
+Gi2tTePKaX326BzZtdonPeR3jU3ic5GOwZHiyrgiRRUSIjjnG4VH/0VYhFBfEGdKQe4MreF9PCMj
+obfbkUBeFel63qKE29p+cRjYE81XzE9VP1nPI+ndu4KMJhxMyYwWTUvNLxZoYGyoSMlvz51ZXaPH
+ttdYlCMSOIkefleE9qbuo18cp6qan4Sh06+q2C6QpTJWkNas9p0eAqTuzgylLV9GOG5d3qKPDp31
+SusAlV06uGCPuTpG7lTuyNUKyqk9DDzQl4L/lZtW8a6yCXuLg9xMvyY2TqxoAWS0xH2TEtCMEQBb
+mjAcfakb4syIbrNfAOIld+Q1L3AOaSne82plC5tSiWLfL3sYDiN+DW5kyvSgJAGIRtWHxUX/L9Hm
+oNuGPnU/hEhu4xIEw+XiuFDe0bj1BJ6a6iEZU++LxreBHMtpUU9CSR/66ktulHc0s4mTDgJlnih2
+JYFzjqguTNMJ74LSzt6Plj8c1Rykz4ufA74a0gJe6dqZfuTC2x4pkcfkAnGhfduZrrr28sZ/yGSX
+XdTW/I1EWMnES8sPczDKmIFEA7O9Cl+a1vGeE23iAnEru33ukZFueWPlh5xowOwisBfuUNJqL54d
+s772wNa+hvMSGidRekxo+mEL5iaguoJG7QQ3Z/I1VNfFRP/vyE8anW9wp1zN3ZxIRt4TODh+tBHW
+32V5CS4sdUq5RiMnkCwuwE1GqGc8BLtb6jcDDYSUJVLPMkbRGKSXwoW8sxt6R0rghoEkDceZgmPg
+bf4vMZr9fCWaakvSFhvTTnvuGnNa6g5eYMAknsP5CL4fBF5yxuFpOcCPZUlkgBMzfY/GAmqeI108
+Z3NVjyQqKyuWNelFO8C0abyWluRRbuDudetcopyUZyBfazrzQ1PZxO4pRIH1Gd5HdWk+U3gHRyIC
+yuO6upjhiiAyvKHnr7i5G8uNC+ifEYH6jAvszuhAge/ggQ45DEUv+dM9cwbVmTnYZBOASFZfkt4z
+eoRL2E6O/aqGensYzvhCqtTgyFuD5xLFu5s+6nrzyAV+3mskr8p+UTpgpyjOfMTU4jE9oISFF5zM
+AYY9vD/gFMVUpF+DM2TRPQMX1zN8EUglSNqcf6QuNtNAefIgsA53Xq4exLAGsH+zj0YZXiq7XR6L
+1Z8Osulf6zRpP5HhGxLGjsg+smfvNJYuMvXJbZPi0Qpb/12XSUTpxdZwC4Laeeys8OB7C8a8Jv+z
+RZ69E8ZSfOHkSIwUEKVjmDpN/XFchNZRVwmUyoXfLutJyZ7o945ZxHVhZBuQm80iP1ZDXyTTvgzC
+VZO2OK5eVAtVpvuEJjpyfS8Ps31IMKc6JbO7w1if+je51wwW7p919uNeLX4Q9Uv4agW55R2HWUz1
+F/5c4HgoHOe9sPGLpJiRTrorDyY5kCTKNMSgsWkD7GkLlUZZ5hb4W8ulLXC72MO1m7JivCCbBGnN
+fmvgLzWb5mCQ7hm2BvqsHNjGesGAfHzVa9uEJ0KvsQQUbevPtzCiDsIeT9kERXeowzmatPmN3PbI
+8+ZDjXBoPvau07jHESuOf1zlp06t7xH8zpLvZdjLRWI55Z1PgkF9mc5BS8hqYz2b2iyqqOYbeMd2
+HsJmN2nQlRdWYySRObiM6AvlXWtvyNXOnqzymRxxyOXLoNUBDylPlN3fhetcFBEyVSKVWtmNV4nR
+pukRm30fraUEYFQndjtiLEUjdFee4z9B9gnrLghlIY6byfmyrJzZhOpN9ENcegOMZRC+96lDaP3o
+It6J27yr7Hgpfa+IzGagne7Qv466LFseVWus3zpsRUdU7dmzQfjTejmNY+8dAYeX157Q7bdW8Int
+OGrvc1+MmX2RZDgnb1BBEq1uN3523wZ9kN8qX5FBAUq+EVGtKqKy86qbHtuhnO2L1Ouw7eSyrXO2
+db9ZcJYs5mdjgNp3LMp8s/8VqwBokk7sv7rMxGEtmvSxh8W8PmgcdkBm3akhrztrk1NayfBzV88J
+D2/XdFLsu6ZNu1OaQ0C5btDF74itXmJHJHbkh8CfV91u2u0SSNOpqBuvN2I6BnaPnxnb9VVAjAax
+XrWfOrjMjInAJK6DOXtKlBn+1X6vZt9J+ve8XPwt0dwz51szp8Udt1TXzT41Ko5mjfZnsrRXXK38
+xH0yPI922Ft7T05HPLIkTtgd8aA72s5Dttd2l+v7tOpy4Lgws66mbpgqXqsL5jCa/k0SrfBaJ6BM
+VXhQCsgPMPQR820xN54BxXfowutmrUFojEDHuz2+n5lYABxIIyZEiNODKngxJS4o/GIammslvfwh
+nLiweO5dCMaFsjF5i7ZIX9pJtmC7Jltk4IVXPBx87AI4o01LLAND294mo1UMx3DphbqesU7JZztp
+jfYyHHR+gkMZ3GAbMhMiG5qx3A8BZtWLsEw4NqlZyCfhTe6XltzgMSocjhRxjaEd03ibh06Mk7+J
+vdo0gWtNJI2YKeEwJhUVh9KFcwkK1QlACtos/6jtKkC+LRQPWAZEl7b0ODg+Zp+6uRP1Uj5NnpXK
+o0vLS53oZzNDTgMsshecLPK9lHqPRc48YiNJvMtiYnpBu8AtvHgiP6HbIzLF2dk1ZSNiQnGAoHNT
+YtVO2JwRAl6ROsMe0p/EGFz6ahSnbma3Mz21pNdsUMurTDkPH7tMLJd9jtduz4oej7hbvgSuvGhw
+zc+Sl4ryFha+e0hs7yiG6p3FPmNM9Dml+5AO1vssy792mjwQYewr37oWS3Ap8ybfdb2P464uj76c
+XokAumgrvR/n8pOn+g9B7X1YnP6d7cLsNlZlRrYLZrkU5a6X1RIh0ImMBJ3HhKViUq+cux5B/F+j
+pjoE45ehy1+zxf/Sm8tlhx/wwu0CNmBjtgmsaMyuvVhUAy57glIXNC3gX92F4kq35OE+uYwfFKql
+SKj+kdmv5e6HqfxYVDmrAi4i2jdWZ4HDaLf64eTtV5PsH+xbQ+Z6D9nKrCpaR4/4bI169tAofKZP
+wly8+9Zgge1rfuPsAsYC/6bSg7YjgwJAPiPI/FzJdHkn/Wz4cxohzVy6jbSIkegNRExd1n7wllB/
+aZzebaNsJlmchhDP3k5z3dlJTwVBwyDjC3EKTXzqkV67vN4Pgz1/cEjP9uNsgtW+L815vR645hwq
+ejFbl0u4GPLUIjnT+OEZJKC5h1509In/9kx52a9uSya0s9JWoHUzDti/OEMfFt4fxJaVefrJUlkS
+cJds6qy2Tav0xshMgUXIW7KFuURIarmTCPFVFjZygA5idPY8yLK4GOumM67NymS+1s4o/v5qqf1v
+P+G7fgLjdFSL9NT+c0fhfgMV/7//+30b4V//6p+g4uCPTQJGT99FQ44emW7BP4PPnD881CR0EpBA
+IC3f4oL/2UiwrD9QC1DZI5ZmmsfI+btGgvcHytiQPwRTw19AVnlOp0u/qfu/GgR/xdP9+/9/z8h1
+z63+7xsJwHHPDTdgTLiGOF/92EhA7cGqgnCxN5RP1oSrW3Y1adbVg2F1ltqVhgdy3JsVGBMFn2E3
+D+Nc7PwhoBM9+60VGXoG51GCtuAPfU3Csm/lXRJPjqD0C8gemOMaJ+sF1msCsmSgAKV5Sw+MvSZr
+5EvQ+UMSiarsXjpyuswIa+8I2sAdHdy/diXuXCM1r1Ldj2yRibOVIPBdhjjVjZDsG/2KsTX0+wc7
+t0i8wLPeNTsQ/WKOqpk8tF3HKOxD6PGg7eFrwZipvI+rGIRAR2AmJ0mky9fBmpsHzEHVp8UdHLgB
+0H/4El3ObyDTslmjIvfwCWs03ztS7eko54Exak7kPpfWEYiCrL0jn23RGdFqXVUqczd3k4suz576
+PvKMNf+0ZA1nZ1y/KRyQbO6z40hVRTpWtYafiJpAG2ZVGWT8spx5nXFg616TYuF4JpSxnFJ/gasS
+pCVkdL5r/7GmmiB8uQ/9iyCti3eJrfsnoby82wNIsW6cDfJKLoCBAqzDjY3Ltvc/q2wIPvLCSpZT
+mPrjnUsEFXuKV4RmvEifiDit65tU5/771TeJcRgrC5829CqBebzWr77TrO+dau3n3Yjb/V63Sr3W
+oWof82nhzLaSruRE1I7VsO6kW9B0CQsAxQYH9698oisuDDt3n0uyYfLDlKxTQKQXZg9CKYZSxq2w
+88/+OrffFMR/MIJpPg4W9SSAAJIzZMbhEFtIFll5sRCJZ6jxiRh018e7GLp6X1GhvTetyukvchkO
+l0Xipy/+4sirlj7Ipw5/K6eHxO9bZFz+8OjV9fqpZooImmQZjR1iouk2b5bqVqJFJNsqaBMCAXyS
+2sks8JSNpclO4J7USiPTMgP/c+Zilo/UIJMEcEJbGiy+ILgWosJ3L811vUsKF06L6Vkfq0B5r9sw
+NQVkM3bXoraLK0SRDfSR0oUcAcflcWm0xjVXNTQtLI4ODzQm2xRWRmXxXOSD+46Gck6oZhFSNa4c
+jvbwAPuDs6bhI0VQdwq8fn4wuyZk7oaEP0loB0XsVlQTYuoyB05ipoIjfYPp0cjhHkclxeJrL3RH
+WhaADBQRnYaPPPqrja6klktycJTZ3cBX1F/w5fbJDsCBvBo6BmExr0G9HHCQ0udDBe3UcanWlYRA
+R1HVj261nSLlBDV3TXP3USTp+LoGHMIj0WgbjATmcGKWUmrDHZJgFca6EMPXOsBucHDSbr1pRm7i
+SXhpIQ+umHA2Jrj0OUi3bkaDZ1ns69lX9QM8lBAfN2Dzr2O2UjcxIHI+2dwiAjpI6DBxgkvqNbMx
+OQfoMXCjrtEGkBrbIhOFDAmWUoeOkU5RpqW7L4xQpFFdtzQKQ+SIL4YK+1fcz+W1nmT9Gcc8FpDR
+48QKAAAdEvwXo3bjVPre8ICR3X+H0G0ldtu2uitpDpii/QBxdYy9ml4f+ZBVZMChQVdU2O6LzAno
+2CMuN7p48RKCfnzDAeeTCas9eTBennPpVuQ4rQM+4kxq733lluK+degmxcjrOno2s8wpgtbyA1MS
+g618DPo/u7Ssxl1VTjqPG9ub9koS2oXve8K1PzVG9gWTcScOjmUgiFnauSCGqTX6iDKibiP6M4u/
+x2I7/ymwnrRQUrrWp5TKnMekDdIldnOlvs4ctt5R5YJ/0n03PCZVRb09ulYoI7Y61gT9VPp5KXSW
+C64VA5fR52x4NA4kFQjpPx6Or9H+MGOWHNhCWkH80ghiBv/4LD82mG9h7yDzv9ROjv8dugy2Xdzu
+z9QzBuOjwqRaEaNu3wUKssE+XVwy4AjKYlVTedBEFWFK363IMMMCTmrn9ZR2nMh2m9jVi8D6Fuk+
+hbDC92EwPu9TJ5s/pzjsXwJPte9A72wu68TESzy5QWfEwmeP3lXuZA47YxyaD/2Q0Vyj5qOP2xdr
+iP7P4MlmO56cy9ok3+uYLjZru5TVbTjPUwfoySaHa7ZcQvNI+8Ay0SRE1NGNr7k/9Dq/5mXrvdpN
+ElgxNfgCb8gKHeOAIs4qLmW9mM8hHRDnal3VGp5YH569N0NYEXumGlyYWhaELWLuiITqydzZsrKK
+cH3oeeE+p0JSP1MN5+NFIdytMh7IDtgNLNs9QnCv2KuGRzsi0wxLuBp8vNpE9xEXtda6PaWNP7fI
+qorWeWTwXxRHxgW5cUKaTmRlzUYwv0vnIXlM2JyIr0EAp+8syFfmlrxavTJFIPRpGRTJKmXVpvIg
+8r53dnCzvJOFSF1FYgkpx9whWTtgRX1CU7M2DYumP3al46Js+Tg2ds+gQC8eGdzY3MCflBYw8pWE
+G1Sm2je8OHfU5O7mvvW6vTV04K/pdM993IW6q6G9zBa8HG9rSpmGX7ncLlgwuwVgiRnP5NeNO9ce
++PuZl1dfmnxtjAiIqcpiWzYUsCBIlne+P83jZaCKcTzmgncUjZcuOSEomcvd3ErxNNe0nxy4S59U
+Ywp9RBnXZbvEyTTzY70hSJdBlJ91NydP9JWTr9AXw3RHOp6GvTJDe4rscGmvVN7aL10J5QERR+i8
+tDnVJ6ZFMzyCfylyngfaR6c5nZNHBq3NtIdm06MIdwuM/ebaYn8vC/hlhbVxQoq5Dpx9kjBm2G0q
+5fte05jZqcZOLpUBroYWX85TnLewDiK7X8QzsV7L55KgMEUwrV97UYlgtQOAMKv7WjoIFZVGkbgz
+rT4jpcuuvHe8yTjMQYLw77PEddeoDRJOVFhEGo3RS6inWZaNx3nHMylN+1ISOV4MIXYHW7TMrhDr
+YyFnjh97VW97MQg9/67MkumjU4/pOwfUfnXdGrPPTKMAWdZbHQtFOS7dbY6DA6lMUA4Mlo4eRZxh
+RHmWUwqvtzdWlo6TLeplkowFdrVErI/uk7f3MWUYbsZ+kdugM3Lfmvd2MWdQygw2DAiHHhtMDkeF
+M5yf6mgIFihKndUSlWSEZs2LtFsJTGymxN5Dtireeb0cxiPtEUkIQQ3laQ+zAIEY9DLFYYDkKwhQ
+2mK7L5mmQBnmReFB98mqZxSfNcnsGqYVoppqMX9TzIAM3XNd099kGgJm5RtRSDJldRU6S74XGq+R
+GZT90VSTPHxXOP2jLPm+DPlJrPnXx2D/oeDB0WRu487vxpk1sF2Rg/DZg6s7DSFTqyldjRjJmkHB
+24vb1oHYlLV+EydzMh9aYYYMiIbfZHMSmbFd7r+/x5uxv9MIPWCnIIS9Q0Q0u353hHLNY+nDKmOT
+pMlnE9NeAeNxoULE//1neCs62D7dw9KDaA8N00+SDm+1YarhW93j78rjwS6DPV0q9Ysfe7tlP1Z8
+P37KG5loR4MsZ1Cc7wOaL5cu/YRYpON0gGJm7//7BVmbCOXNZ6Gb85iKoxhHJPpGpKISP8nyxcn3
+Fb0+nNszjzw7ZldYlzkjj1eMs6t5gd9TvCbWhLkM+h0YD1WZx4Ix200jUXjs4KQbzFlkcTJXy/g2
+Vqb92igiMncGZzF3z74Q3qcje9Hvrn6O1Jt1ksMIknfK7R+XpQQDl2oZyr1lodFwg1zFRp6bF//9
+V/rptm+fskHLASbgqKei/2Hx98rWWROQSNY4Fo8XqacHdPTub+qF0JggtKLM5/TiQmd4s7TJkkgW
+mwDBPSJnOqSZAO2jTXmaEzH/pi1y+yhCJXiUBfNk8OQ/XhCnZyFEzty17Yf0y8q4+cl10/bQSnem
+lU4gIMyY/8n14VNDT0N+AJ//5vq6lR84RWe9l2gDyDRyGrb72kf8aupfLIufniD++4iVkJXhAcCG
+/UZ84ZYZAyq4M3u92sNdk6kqUlNgkrpqT794WH9eG6i72JY4c26q5LchBYKxwdKMAWA0vapj2Jd/
+dgwnfrHvbAvsh6cUs/UmphUeB/Btjfx4v3rbLAYHJigL0F+eR2q2/Wo42XVg1P3NFtZ3A6Kz+1V4
+y99d2vef+mbZwz1TwsmSfI+MZT2BSGJi30/WX+Kn/yhe2x7Rt9eGUwUVDwpeWnBv1qLLJBNSI28W
+EJP5PWhLihpoUFHlNCQVZpunLAfJeXKyIfn0u881/nQ8k2KznQLlfrN7zGvfGMa8zRaYLe7hHhXX
+xUAJ/D/4FFIWiJ/ioabA/PHmubBkTIhwAGnBSB1s9sWDuRWT//1Tfn5Ds0bAKaBOBvfPePHNG1r5
+KEWoWiUDCk6y+81O6HOG8hnCjXiDwTip3L5eMuKyASmJmg26BVsBNLGwIKLCvPzFN9oW5dsby2Xb
+m1gQid5ba/KUIgppV4cvtLbOMeXs+lC7ebmXXQNfPRyn8Bcr6W+ekk27tSWqoZtGR/TjD50NjmNM
+vpYgaAHrDoNJ7opvqOAEuYT6XDbB9cQcsPrFw/nzZoNkjPYx6nCeT/Mtb2UwcF+azOH2KV2mg1vL
+lZjNEX8X/VrL+8ViOh+03vyqsA/w8GyvCMFO+uNFhrVY/BCu9F75o3dLFRHu+rI33rWu8PeMQwhw
+tXJzopxV1nwDQiS8ZeUrY29Twx4HuB4HelXJ8bz6/nfi8N3Egbu7EUT+87zhOwXj9zOHf/y7f0sX
+Lexpm+vX2t5QLs/pPyYOnvkHznReItv65XYF3Nt/Thz8PzagD8LbLbIQ5yebyD+ViyYzDMyvIaJF
+MtPZYszfGTh4Z13y9yuMGgKWCDkMfBLZJdabXdGeUwaIUgXRMPUD8dCIESisRstki6QkfSCltXWf
+XLmFnBrnwFNvxIJ0EdAii8xgbceHjJAKRsDnpFR7gKLNI0KAau858HZLZNDLceW4E9xZXUU/JrXm
+AbINQazVZl2LzMK5KcAPFw8jSbgcE5qRyLeMISszchx362uVD31+N0Ky/FqBBFH7IgmZ/yP2a28d
+vflueVl3L4nZIPFbp2FC/6/GqxFiH0S5cBHqVlKmyCMQ8oCs1zGx/tzEPSvDRFE/ml1hVkczT2pN
+QLdByj2s9A5mRQm6rUjz61BjXIuLPi3rYFea+CovaINYxg5QKNG/Bsj2OrK08OS19utyYz0OHJk5
+FzPtgJKyBIfSmdqM8oFsuduysedwv7RwR2NmH2sbwS+qlj3CxHY4mAPZ1FFPl72CUXVOOQ7Ambac
+RIUFZg9ckS2ZhLh2gUaRwfuVQbqw86XLJQwYm9crnbkwqfxotuvFurOmBPlgLYKVzZjSt79nq17W
+Y6M7W7wuble670dQxc1GDsxCrE9179yTID5Y90QTwDYWWYlWUiFDIqQ69Prh0k8m+VwOnflptMr6
+Q1L4GNk3EGO5W9GY7Og8OseikuQd44+z48zXZOyloXb2em6qd7aN6LUtq9hfQy7ZyoLCoaZPsiYa
+u8X9RLJ83t5nY6Xv/QrvUlXp6WlO7Ka/zag6F1oBNbAdw+4UjMohrPK7duhFR9RXTYa0jVSdcBbO
+aSirCJ8T8ZL3uXerl2UIj0Sv6fGAUqMKMWCV63i/rkZCj7AYy3mGTDQt1j6FdYmAoPLs/uCNeRWT
+g1x+6lzRvuT1QgpXu4iOtrqtAiNeRkDlTWj2cI3YkhU5kLIRZNQKERM7rJ7g18E+yQuimQ/8LLBQ
+eVhm51NYtOEhgWua7RuFhugbTd6FnFwyCMRpDCYmavvJ1WT38jvmWk6xQrw3EETQ2X7jJoxd1qSt
+lpthJkq4uOS/HyT+HkH0+mHRSM7wok70vrnVR2dYPvpuP0frUrSPDADlheoXeiks05NKFSQJtB4D
+ePach1D1cwK5txkIhRN+TqyIIXxSUmmb0KF050TeWsOcvUfCw5AG1ujJpmF66AnevNno4aeSvvMX
+TXpEPTUuAxsviUMVLPehW5MxrhAXxdbqV6+yzsi8sqVNRQfJLLtXRG2+cG3TyUoUn8gmYR/spNnn
+Bv1ZuyzpTaukuLT8Xt9PPUNApl83hkiBPWrgkcFYLLSy3O5xgtCI7w1+JdJUApB3RAQtt1jIgmsf
+d2w852uyaaRp/sm1g7XM29b4sIbYenZ0yMYy9tFI33eTuV4bZVE8oYfpXwJ0ttDVSxbmzmqwP/YN
+TWqEB+J6NluPVqM5+8WOHRREKeqryuJxdLvbNB3Mh8pVwJ8b1IXf6OgpJ1ISiRkkFw/JMhkDqj2Q
+VJqquM4NE61VaabkdasU9CEEJM/Y0YeanXvPK417s+u7S/q94qLtA3yz68r8B5WftvLYN4rlaaL3
+WhJxzlyD5Wpl3QH3n31qhgF4Od4svrX0jSUyjCBNLucSg2KULEVDB4sjPB35CuEUQ08HF1xMF72U
+11Vp0u1rF784FOGcGVHKtllGxDcjmSNsj3IoCEAFQyJtD104dQcnnOzikQmxMeE5ZnFiPwPynrhs
+XbsudOrpkDbMLB5UaH9bPXRWbR3sRUaPdB7b6lZrXqESgWDD9h754Fq74iK3KU0M6LbCNcqPsgi/
+zqhsqMr6xoNBX9Bchik5m2WsGUgSkW5MRX9QyTCGUSpNNR4n0QAaMQixvlgND9YNwGjjiGKbyY66
+WAktqWK9omyCUtDcukuo0Jdp2S6Hjlr2lSgukgxc6F+QL6C0Is6d1IXh9PqUjkTBQzfocrYjBvC0
+zWhe8yvXAeP2Quv2jpCZK2x3Orsq3aUMDr5YiDsPtqyOU9N7XoDSSje3RLLI/qITRRncrGnXxKuh
+2eL1OFvBB3tRQYyKHQTxmiSwtvtpZALgBBK0I+M2Jna1PhgOfwsfrb/EJt6xBymLmt4hP/HJ3tD4
++ccxU0+6zrZXXrG6X4ALL1ezNaXmsavkfYK250URiQxQeTVYGCOUs+plVVvYPdu5cFHIM4Ri4jTQ
+JWxX179xZimdXQUPFsUU+wNaZ8wbdKAzK3tcGwfxroR0t5Moquqy0JdlqQE/B/5rRnN3V636U72q
+xynNHlF2r5di7D+S3sgUltf4ZH8tBUqCpQ+D3eK6p57NfBeM7nVLaDhjQ3IoKm+8MioSdIiRLdSp
+bubZY2sMeADgXNBGVB1ZFKbduhfZ7PgjE73Uu226INuoDQwIYcCvxtTHad+WI+aqrv/saWJGTiax
+IZ9VOVnslaV6WswgQ6yeLNK7mPuaVy6lkQ+YqbOa/jBnhBhR+XTEWnSOXT9aKQ23SyxVYxYjlUPu
+ORWyf6anwMjOybu6fbLaYn4GO4r8Dmpd2B5no1uONqcDutgzge23clH1cuwWNIfQ7vhPy574X+YB
+/UTIu+YT60H4X8px7p8bZ9g4x9oU34Bhe48WMUIy6rCNRLmc7pPc2jfzOlNCeBPK5QVdo9W+41fN
+Ltn+ZTzZmjLHclpeivlHdqH6kLRmuPfs3H9pMnHyCZcg8oYqbaYdF1oo4rJk3odhW8C6zJ5X04YI
+IZCOL9TcGA8qV977ubTci3ENUF8jm4oqgyiNesaRoPT7Oh84NKRlhoLOTTpXPheeqq9KH34tAkwR
+vFdTs4QxaxeKetHNRYXaBLgxXPfRLSVA52TlDl1mc+JVkBWqYEEBOhmT1SsOb1XKUU8r4jgi+BzS
+vBiNjvLRLBB+epWpggOQIp29eiqYbqpSdsGrEkP2wUynMeCrbh1wTPzNckxnTz/ZpAgVO6Gs/Mog
+pi6NlbT0N10njCKNdmJ2l4bGe9/g4bWVXlFO+LwT253hYdYwBlotu54jxNHuVvbbMzN6s6N3EcAy
+WM41GhXyyoUZ6KfOqQJ4f712kOImw1mWuyl0+7NYF8NylRO4sYl4m7OgF6b89FidZb7ZX5Lfs/zX
+I1EivyWDkVdtsymEgcEu4qbvw9y+aP189T53Zz0xk69vQNSdeEh4f0jlDN4Ru027XjabFHmyB+PY
+bPJkO+gRJ26SZYj85ciEj9dD1PpDbZMZsCmc8d2XV4wzrfumtMOr4ayFdptkMRHIIpGmd4daekOF
+WXfFWUVtMNc177iCdNpN66Yh7b0OOWG1ZOmR1Fi02PMmy+YWW3aEePZdq10eubOIm42rep7O0m4c
+Eu6172uCdYSNBPcsAscUjyC8OovD3WqLVGg2zXi2qce9s5C8ysfyzv1LXn6Wmq+N/DScFejdWY3+
+/9k7j+XIkSyL/svsUQYtFrOBCEkyqNUGxqRwaOXQXz8HrGmz6jGbxeynF2WZ2ZnBiADg/vy9e8+F
+kIEyXe83eQWICoaGDdMpuO6M1WU2Hehr7bJfhbvabQD88Vf5TgLN8J786uET4rURvKYNAg5kxDuC
+kTqa6jmV5EHnX/q2IYar2rPFlYh1JQ3Er/AemSIifJSgCPJpDG3ifMs6ZvVQnWTZbalSrflc/0r6
+ky2f6lP7lfp3bLSshqZBmbroWHjStR70EHGkmd80hr7WB7Ja8A+UsJWE73Tw+kOUKqod5L9+A3xX
+ijeGKLuB9qiEMhpMKXNbg9JVuJGqI6c8tL8eBj0mmCGg/sfbsGw2B70ype8qSfHZbCYIwqB+sNAS
+6zC6O2mv5r1r4eiE7R0bkbYZKYa/PRVrXxMGgdNCwQBdBL0Rp9e8ansmeHE+yCqddvHgyS8HnGJg
+EubDltMPxt9Q1v9vdfyj1cGQw6Mb/L+3Ou7r7iMtabd+M/nrl+PXf/7Hf/+bf7U53L8YmGytP5pc
+mGf/Iay0zb9cnN6oGmlVkgFLP+2/uxzWX/o2l9gamIQnb+jtf3Q5/qKlub0ijVqbvj6ku/+DrJIK
+6d+7kwTe4gJlNEDXZGMD0DT5t5mOmLHx2GVXB7mdWkXQ9pwsQjGn5UOLgudFAiX4yBzp/BSFtI4m
+0Q/HWGEKVvSpNYYphkRzPzTNwPl7JklJZ5OC9Woo46eczfiOR2vEZkfAK4UPRsVv7Pr9i7s2MWod
+K0MgIKYShUqJdJ7kyfqjEAmlzlQSLILjwRzXIKHTEFP7DsrEEbyoux3qruaWae+w2TKyUo1GdHuP
+1O49nqJ0RnGZjMgAQg2FXBrWhHaEDO56+r3DOn+W9VA+LISENfvK7FD/LYaCx2A0mhUHpEYmkOwc
+4ukSz5kfx0mo2JqW2C5I3kA9ScBHxcQdXFD/hZAArQGCaEKYYmcyrsCvKV5oNrZxtGwNzdSaZOmn
+aa3pPeiYRCOWOiFrwVZy5cFVVPmpD539ulBISzpLcHL9XLQsybjPh5MmUvUVjPT0ohec5H0TxYyB
+yIEgpDskwSgge9qaT2uWrK3PPElToZTmFfsPbxGX52B8jZVX/mHLrXPfLgy6QZwjlWvdmWyOYbY1
+HkF0N+zSjlW3USXXlvwM5LdLsMaqfm2slPiRR6oep/d2idWwqmL1K8Y6wYmwi0cvUIVYxSknEW/W
+7wsb2+7d6CSx3tyjgBlvJ2WKO1pJ6GbQlhrxZaII4kNuAJtQ7XvzabIW6ygIcks2q291oitPwIFZ
+KWSR1MagvNK04f0R6RNJELU3opyJeYhh0eiYNZslCyhEOKoP+OJuqoYTjE8Ki/M4thJtlZouyd1v
+DYJObnsPece/lnn9q39Ypu8a4cWL4GN1Pvoozj2bVurFlPX8iIp+4bQrK+8enaDuIDKRKTWiJUV+
+4C9U6IwRJOLXImYUf25vKyNaOk++xGytM4OpmHNwUs/aq0kNStop806xg/5gRh5hLURuzEm8X6Fc
+GcD8iabw+0Q6IhjRF9Cnq0S5BtjE7ROqCk6r1iC100DOEy191CNHKTig+JVI9HGLTJyScGPNnFGl
+pTLEWTl/TbbXlAfSAepbt+615z6NAWIqaz9q1DO9ZvscXLcEVqW02906ZOs5SXLnbc42kAuOhfyx
+duHvBlPq0m5AUIRzhHSw5MlB6HebkAk2BMsMPofzBsFmQceEeOtWmey3PP1oyRKNBDrYNMufLbDj
+K2nq6UsZ5uRjEnlxRYtOk35uTymWiUJpbtdsyB8rbKqYPmFtvA5GpUqkRp39BCmuUHCLaquxWxOX
+6MVFUXszTKVN18ScZQw4KDemIEei9YzDScuPGtkOT1WZTVo4mqIYb5bESW9wEblY6oZBcvt72hAS
+SbTe1BJVB7ohJ0v9WK167je6nly6Un018jGuCWHKO8OnG1XbQVNM7iMgJOvK1L1YZYHYWowrt7G3
+84zBfFy5Yx9VQ8SsSKiyj2mJQDLsB2nVBx48ThQN6oCv3szpmOlkRtKzI1hviBrPkwdXrfQhlClZ
+cfxBKXhjsdtdecpoWEFb1bVzGCEBHY0M3Ar3KMUPzZW+fszEmCehRKn92sZLzdzDKA+s0fJCfo+N
+7H12jBvdbNQ3RCHej9rpyCN7xfuReJoHJLJxuwQIpTnex8gr0dkiA0S5q6GGiK0Ce5tikXPpz1rZ
+fkzTJrkVIO8ovr3V+EQ0MDzU5L1tv7flY1YY/WdJUJxxMta22IMhcdNgdiWhHiktan1HsuPQExUa
+c0Smf6k9gyceKYrqVbzbFeIqyqD4w+sX5W5gFbnzFG/Kodl1PCFxb0GickpTUyO2gXY3AVxivdJm
+JFzJkC7XU1vMKg1mTMoOGSO5bylL/5kZEGpOdVkZmzNWd/aF2o1qmE158T4QlkhAaONWBBHm0vgz
+cahw4L4s9UdGN2QmUa2sLnpGIodOE/ZGLlL/cDhbW77RSvtjFEX2SCFL12AwC3mCKPesNZUH6AB1
+wcgRQDfHQwGYamE0mZY/c6sqfypi8AgxW5flIa1/rcv1WiSXDNawgbB6rL61QvJQTYuX59z4ZlFw
+Pi22w/zMd0k3u/0RBJu8L0Yj7oYmkbd2kfRvSU+Lyx/5+j4dopDO89a32vxxLtet8SpckLj2Nw1/
+IsxgMCXCFBX/5exrSTLcaIS5Sb/XRrmGJhazR21JXDX0XCu9pQ1EZ6ZRU6Dci6ZU826EnE2kU5ta
+zt6Li/nZktuUgRr1WReN9WTSmCcfyx4rJ8zqscrCmaN4h6eTFhU9D3110WEoHGEng/uUHUYrTzqt
+bQsbsyfWaOWUXWU6tzEJFu0Nihzn3evL3iYhJ1d+qnYqCz8eTfOCwBdrPfmJj5M+tCpSDlolfmUg
+PGanRLkj2VI7OJTufJ8XwvrOAHWdFVaXo51hCgkFg4jx6Lljn++6uXT7AGUkugM1hlCQuRQmuxWB
+1Z30yhqel5VW58xWx/7Y4dN7r0dDuZ4zYJo7+iBsMKm3DidHdN594sXLjIQ4J8xFGrMVB0vStpG7
+dUYPuM2rLKCUN79cXR9pVmLiOpukdD2bEx3nbfMh3izWFwJHFy7XvkSwM+3GMVlfaR9pDbZbElLJ
+eErQHDlWWwV5Pw48FHquR6Xp9lOQdMrY+E3mzFyscsHCMMbDzYAR7HXwDOPRyg3xYE0EALHit1JF
+xJdlcUjjUP2JWVSOSsqxUMMe76PScO1dN8IkCEwmKLeClE0bjG9WE0a6TnawgoO+rMZgzAGJkSa2
+nXQ0l0ikZkmibWGqRwv3Sht5a+1mgULai+OzDJifCGTiJxW/24uZesU7I/TlPHQ4OALYQU/slt6L
+O431l6qVxW03NOWfzFqNYw0aowts1egsilDdWX2tXIUSDrLh/1ycItsRpgx4aLGdGBOmXJo50kwC
+LANsn+Tb5Lol7wvPHjXgD8O0RUA67a2Gs/5m02ecqVmr5hw7HXFvivU+LtK6duys+yjS3Hwx0L4n
+vjSL/k8uU5p/c2EblJ2kxSKat4Bl+N0g3Q/EWnAnh8QTV6vVzuyffKHX8QC3zVfFPFz1jZt8d8Lu
+Rx4JNNZHXcFw5y9znb5ByEzptdvmFFFo0Ss2GCQeRtwINIrGjvrK7slS4o/Tut2DkZquY1fDEmqj
+asKnkegUGRI/xRDVRkFSM3o1trd+7AYvpAs6fg5F+i6hcaQHM1u1u6TJcZbEEw6sSFM5GO+8uO4R
+OA5LD9CiGWGeNvi3qxNTVBZmS9E659Djz0IBOq4dxgUFEWqkmFYy0RnRjNuYJI+F7OI13oy6PK70
+blt83wwy9DeHpju3VdXz7yn79ck36w6P46CcAS7g0OmYWWyJVpwMdgadvZX4rQymiUy0TSfftqjo
+Kw2DZuSCBhBhXg/kiVV4aHFG2CN/P68ECXeu3vHnbm+Se6yIkfgyuVZUmlhJgCxgcmJPz3o6eUHX
+w+b0TbOj6dR1invD36BmHBeLoLEq216YdBDmP0bS8mvmP6t7mFxBe2YtVNgfjZfEUceLrLSXt4wd
+k97VFtNlYQlQnIH/utOAdl9ddFTsuaLXXegyucIg4CiZSUNxYqHupnG6E46wHwVsDCYbSb6iCray
+6WpcTO8P6RrqQETVXAgC0yvBxLmr1CeNZrPt4/gmxA/syfyOGz77rsYimYLCKexqB6RnOnkbTOro
+MPa+6jqAArllda9EJfO5KobOL3XNsDoalkysJMfS6Q5mG68AzUtPX4/p2uMOJ1EpvesK/DQs7Ban
+uhXJT7Kr7I6hT6vJ5BrthcV2OPLroEMDYFPxip7eCqlI31mhKC0Ts4JavMsbjgmV7Kz5b1Tn//cu
+/tmHwHFLS+F/71081p8fdC0q+W/di7//1b9sodZf6ANI5cDJCaDd20K5/mULVf9yKDERWnDUpIPt
+0if5l0jD2tBTiA7JtmBYYCBq+0f/wvhrCyra/ufYwKDhLP4f+hc6EPz/0cBA96rRQcHp4vBylrnJ
+kv6hyBazUToFuMGgthbgSYZLcmQ+T9POSiUDdA6oR44i2C3L0UWdK2ZFPNl0WC4sKPh9ZGdGjqW0
++4aJQ9hUotonafLtcvq6qIDkT4z78THg1LFB0Fh0JXLCZAimHyocH9P4qiZWfKm7sg3JyKyvM5qj
+n6mnTR+WWezqxrpdnFE9urZZn1uheU9zKV5BFs7vFtjrx9mp4vutdOfwOiDMFPrwli9Nd1u4uOYF
+rjBPqa70tuywTCcuI/Gy/iJYcqRoczJ9B9C+vXgSFFHfWMY5G1UcS8oy+dOIhYETmhNusC3hW96g
+XQrHKw/TYOe3xpw/6LT1u4DVr6ZfSH2ExtC+ATW0sqYvdegiY7hLqndH66ewN8b3lu2egQenj7DJ
+twVrWBl5ZtQRlpq+0BsHXW5MkIzoW/oJoq06cMry1Drl0S6WCyEjIgSus+wn1QLEkCz5bp6LLTcK
+I0g4OZlHDwnGZ1TnpKEyhxmPWTzUUTGPY2CS8YOpwkaGiRe2DeohdiInTgkkNwyGxJFjV0Pxmbcu
+i7ZQK/XAkbTzjsq8ZJcV68RiGfhVFBgE0laee8aNZ/wd5YWtgyxFI/cOTGyx+Ld8PeEyLhS30Gp2
+dcV+p2p5A2KFPK+OPy2Hj3roi3vTUVlgK9OOOiQ0B2D1ZIPOUadOw1WefWrdn6SiS+ECcgHDcbCE
+eDMn+bJqKwHD8bO5pvs8rvZtbEctLmkz+fFSlAoAG5xc+1ZF+TRk4OAFCbOUEcfUq44Cy4VNcVnm
+WyrOfLPUApdMecYhe27L5LCss7zReMZDvZaHbQwNFjOFG71DaSlDy+zCcnkY0hQrI+eyu6Ggv+bN
+fkNhvHDefMySnllQp5nRmLnXuuIQFqyhSHGrgxPnnLO8Y9+pEQdU5viEyOjjm4O7ZGrdnT7+GWLz
+TrGYC9r3ZvISL+8a6CzfjemPMSUMjLk3dnbai5tVc5izMwWt8pD4zd1ULFinjC4P5/GOOS8+Fg8Y
+yADdxsBqNqDrWNIXRncHKydv2W1vkPI/O50t/WZ7DQLl/KIXgaqDt/jBfesnThMmDhCcZty3mLX3
+qqFSTHnZU9sYGbIJ8QgN5WooFsx3Ztv8FAhtVFe5NdnRC8t76lP3KVHx71IKc8BUmoMGJtxsvlMU
+4UwtrLAkNd1vc4ftumJc9CtqwY+EXxK/lpxqSB/FT1Op6ntVe8W1zTSeYxRNJUe+4HOLaMgFRakc
+SsUNRg8mUmHThlr1n2WzCyUmaGzrrlfFF0/tS2IdSIgMWuFdSvN6zY1vk0pVqOJprjUv8Co5bW2z
+C+49uqJD9aEVSh4MAq74NGf3DKY0YOrFZWvscbSHH4Ehh6rHvY219HPO6pRB0nQLwetutqy3YW5f
+NmED0QfKFe2nh7TlLmN+FumVvFP74k1LTO7P/LpG+RHr1RHyZjQIvQpEDbxl7LU/YpKfJH0+D/Ga
+BbLP7aAslD/sJx/KnJy1QT/ok/PcJu0TfgVqOJG9xxWDwGkGzGQxr12keze4896D7TGlw2UcGJX3
+or0lBLegkM12U7cg8Px0a27PnOd7lSpJ8bfw6cKqfp+RUHCEusp4V7nyaswMpDokKcJd8Riz5NjZ
+3hsooM1EcoMOTSi1FN/4TeJph3WApmMP7+NULh/9IHY6Rik9f2ris8oyqKrDz2L3P4x//LLSPcTa
+TOTIJOZE390Bab+zU26DtevPcfElWRekSN7jNv0zGx6SB+WW/Yh7NjkrHLot8qh1gO9uixt4UoQC
+iqktA6sx7tpYfrbYLHaeXb1ALb/1OGsLo35y7TmgWfKHoW5U03MhVbs9wngr/XaZdoacxqDoxwC+
+18+gu5dsVZ8XTdy0KsEcTnJEH1X5RA+ETpOhXhix/KpTkh8zjIZQTCiMZ08PJ/o/PqxVNVgz0CPp
+VjEiRngSorotZ3EAhiuCQuu/7Cp+nFWGTjW5rWWG+X/yEIaMLfPdKj4yIlXi/pxiFMd/TGs+L/Xd
+Qo77LsZ6QXj80aqus84IrGm4Flnz5XkQSdI1u5pbky+ZgXXZeLrvpYRjI72qfXXqb9Klfk7L5tib
+MScTrgTWRIV7L0VRWXInqPW9HDwMtK3+Mpeyf1GZff7MzYLxX2cuVtBrm9SkZMDeqXu1ER4lag66
+JJ9vWGQ+tbS45LGm3I1aFnG6aHl0TYIJCi+wdTTs0rqwlW8iBrJ4TKbusnhr1y+rKyOYl/44PJhq
+cq5hp8Rd++BytIAB9pklKo2MQRso6ptAE59Z03bciIB6sBaaihF2MR0+o+1ObTmbF9DU4jDJ96R7
+bhcriLf+WrmMmCbNwJ4YF3RoQCySaguvvZWmOHZacdBXsUuSmLHOW+JUR9VOdpbBxJzzeTEiX3T9
+jHJp0sXFg2QxIrWidwhE41VKIA/JheEpOSSBJHnIBvcEdIpejCAxAZ5DwfUjMBdBaygSsqRvU2CB
+vV3s6W4ExpjcqNUnJ/Y3i/zoBjUi3I2rwS5CvNcvNdKNzZZZoy2T+fRuw8Sge4bQQIwokOqbeGl2
+9MEPGhxQuHHAi8wj0dzRYhhnC+VXpRDJYKU70G27hNxzpjmveWGgrFqAbxnXTd8+qO74LjPvrE0K
+yJstk9IIk1rfVVqMr11cWdafrDZu1Y7j8KQd5trZ1zUHXW4Vw/gZvJiFRZwaPLyV9jgO83YSi0pH
+vJfIzTL1hWOiX8j1Vu+LC2JJQqnpTVcS13k9UhBMJ2mgF8xocbkaWPvOncNMpuRI5zAvkGDkyITn
+kdG1wjea1PUOCSX8nnU5SNysxWAOUZqsNZYWRnLsMpveMNku+iM7EpMAxacBop29itTBuQGzVMrl
+YjYOueceaB5pndC2uzsiCT7tFFNMmlPB6pwXxWAfGRcFo5NfiiXZIRJ4NlUtgnZxHZNxOaHSax3Z
+XCO636VcokGzXH8ksfnG9cCvJWfQWj+dQrETWIOdhPFStjet5P531lELuy59bDUbdRnjdUYN0gtH
+t+TBWKRdBGZrhqMOT6TirzcibKmn/IlJj5bu43TeVxaijTqPRj090glCnhXzTgUQQuUjTeMIsagI
+4OWdEarS88tukpbMe3QE9HhjX3bGY03/A9nhErWLcV3X00mb1Uh2K5Aq70hpF22WSc/uIse9TgvM
+AFQlxZxEqoKAZBrNwNDit5iyVqubB4lDWKs4jSf5su/N71h71Q2qJH87pyvKEOg9IrecBDhisszA
+tScALCZ+7ftmuKGaxWxfbEw7qFsHzR4PdMd56FBbGkO3yy1pUdkyxuC8Utr6QencsMyfe+A0Zldf
+MXzTI7dYQiNz4TKmx3xxx1Bjozygrin7V4Q2jXrnLs/jEh/gYvvt2u5QhoMAdKN+WAJDaWZ/1IyX
+TDdQod1qg1f7pfpNUM4BQA49Ez6Bhu/d5jw0vSUzKhbPfZYszML90TVC74v2qDG4CIXrhElKM4w/
+TCnpzakIlHF8pM0a4VJFyoXQYKUXVJBjCLGTVhSURJtFuH0AZMU8lvBxQbw9kevqtVY8lt5r1h6n
+SrmxCvvkQhJThBd5dgTuzMe15lPno/mIyYHMjSbQkeQhMuRFgRfE2bZXajti8swjEsh2u6B7PIXp
+fuA3SkI5v57HwgrXQi9PTe7KUBYftIzeJA+8k8dlZI7dQ8W6P3UMPRQ91LXktiTq4lFr6+UhIbvX
+di6Wl1xLOhizXu3sftnzFBwTJmrS6qajLSzedCGqb+h9zoG5dETbEWFodlwgCxkG9Nolvpf9c1ky
+0PYMxm+qn2vQPDXAOkafPcZGGqkTV18H2pkaYctOs+8wARoa5nITj+UVnBvIQv1eFgkDWmTbCO/F
+EwvLXauqe89OgmJQWhiuph/HeqSrrCezRXtPa2RYLPpM8Q3MIba0JkqX5dGlRQxF8Bzn5X400OYP
+takFOZkeJ4B0/gq2KzfKeU8+CyKzqtytfQdEwwvTqfIC5m7eoe9eupZqptJP2VhEY6L6kk4O41ci
+3JogdaD8jOLeVJz6xhLUNQiH2KFYtvSXNWVSayoM2xaeYS+cKhhiaKox8vCQWZGloAjoV0GsFzJ4
+vaaGh6EYeHmGOZ3nLjtvBLpFjbJ1CovWEWiVblqRXznJ92ijizP/DMrbNKfFXs0qdIbgNRvrvje6
+s+q1vlzqCNPDQ0tbTl3vXbKK4vyjVR8dQewPVyvlPLy21c2UK+ND7ellMFjTYV2sXZeUHCtZ4RBB
+R109H7UMaWYl1uFbmXuWl3qIxloHA++0gAc0ZgtjfokZd1lL/JY77rGn+ldxWnhpGfZg7H8HEWdn
+Ns6OQ7Xa1EqULEp9QowJcnmQvV+wUC+WdH2dQyyoYcwfgQ0cN9vREYtNxiTY9s+2yODq1trc/ilW
+CMejuTVcmUjYIcCXGFzcmJXPSwwHol8zjpBp/x1P7pXI6eOKND+ULXpD7MvcgQkj1atlbp1jn6Qg
+7DFDK9Uh0YZBXOZyaOSd68mZaarSOMqpmdSTCarKcOZdnPbcS1xsimgq8du+GjjUulG7iQmGXPm0
+HQGNouNjAx+yLPT5+nK9am5IusKuYOsG8UTaaxI1HVgv0iX2ZTFwOyeMMVHFIphGR6m7yJFVyzjF
++GUOxkjcQ9mn3R+bNkGot4SpG+j/XldiFK47I2ZGKdDxT0BTYjvf2TO4P6agzaWsWhSJLTNQJWzH
+KhWRWm0DjcLTn2mAjKcq65YLAAdWyLmpH0sWx2MPbfcyJCXNDUQS4AfzSfmZFxa0oWLMS/aX+72W
+BmP1pWAkbFusQBhzkDzjV7qf+0y8WHyHUQz1jttx5CqvduPnko1gEb0XybSEkqjUf3JlsiFhOvcN
+AfRIQfnAVl+ZT0vuVhHDnoEoRt4/Ujvm8WkznlbhbIIDTrApVKo/tVspvpswbuRcX5+daessOaXz
+rkLda30qzOkRmb/znkIiB/kp+L1USxonLklwD9vpao920rv6pdLU6qSc3dnmRGChdqUG9rr0TkKa
+vcoHQdPHhWp4V2feJtms2x64NA3ynA3wJpcEIfd9ql+tOduDdL30PEEjviZ4iy95aY96Zz8atlGf
+kmawkSyDxXF1jmQ5yvW82rKbeZrVgzll6gGNfIPYevqk1dXdY2uYYC0p21uvAFKvFXI7khDCqfSK
+vass7cO0qqUJDm17T33XH6W0+Ytdy+vRJ4qmKkPCIhdetfZGxCmT8izyJXmRZIn66mhQsm8/Ujat
+u59G6V4nhUx3zrDKA5IGMMxW3uNl6amjt5/5yz5313K41GUtr3OuLtVBivGirZK7xhzlAXkVaLhi
+PLqd86XqDa87qXDWc7QxJgNQeFUl8wPhbb9s0C7WDT92cqf4Ij2oWxIc0u5vQLzBMJ4GJAZH0Mx3
+agwc+u9PCsP4HHcdpDrThBHcel/SSrKzaBJQ6EWsw0Mv1QMAb154+27rseAL6QiOxA7RAArt3EjO
+PS/cNbfThGCe6e1pSqnvEVfFl7zlbde25CA9GatBgaJo1Kzri8VAfN80ygPeUj6YwV3ULiUozoJI
+N6aMFzVVvlRhwGtxEDwRUvOlwtyGGe8U+xozSyCFx/3C2fItq9T735vp9w1A1/1QkATUWUqPsJuL
+e+GZfOEoiKeYN/775mosrlFeAqH//YLMhFc1Ny+ApMJyvZLFwbE4kdM8zFWOpaapxRcQqumhzxmt
+SOxXB2nYFIPO7F3BQmoid6PvFmsqdlwPWC+zXxNdzDxvgL0/cnmKzHs3YrWNft8mXfIvQm9e6lnw
+NjfgPjrSipjRybuaGvHy++b6OJvgftoW1o+Nbm/y/iUDy1dziV2kUfwQlKMn1t9qJxBNhWLavpmN
+x759f5Nrnlyjua3aivo5/spznhYT2SvHh4RLOGJ5FQImC9CDL9QlXL2FnwAu+bnTkk+F+XYADYw1
+0XSmqNtufrelW57xwHM/KV+GFz9LqNGho3bTjhKN8xudQR/O1nOtbT1alx+mVuatO1RfhOVBHqMG
+DJN4LQ6YW/q/f7yZWif8AZgdt0+JUIpXgE970L3xw+x5USXjzpKFzSOOQ2Sjx7R9MLl8VrfB8qMy
+RD1WmDgicIEVu4SK89FbTzn0Df/vl2PJ+X1X3Tx4V3gSb5RkafdVywP1+4XUslEPstiu4/YJ65Ww
+A3Jfcfg4Y3Uy5VjcT6luhFU/K2ciA9xr1+rdvTJ36NCYdh5lOyV3v3fn1K7zH5f26WutGcpZCtW7
+EiM/f5q4MwRQkb8vtZnknt8M/RDhmFoUZnesPb9PlOhYcf4eUZQLr5DIFA1Gzl3sDcoDRyY6EZlk
+NNl5rfuouTXwyLQD+L5diqnddGsi55O5GCVfGZI5d0P6bnc63XSrikFwCeNx8IR1iHPRPPY4WQIv
+1bRTBnIrzJS8uZr1QX31zIylbThsbfa+pRAV3SYmTpVszxZk3wH8UYIeJw4RFZ41Avyqd7IV92Pe
+cqpXFjB2KO96Kr8d6ei0qRLrBzJ2sOLnOi6r8W2Xxrlx5vupl99QALUIJ1HkSscLtWQLjm8AozXj
+cIxX/jHy+s6cugO3yLkfGuU5WT2I0fNy6vMMfBwGWI6jHXD5orgdBhLbGn7hddM30oy3AYPc3m7l
+R20qVwNVL7rQgzk07/YgbnEECD8tc87QX0V859FoyyZlJ8f5ZTDMbyYMHVvvByvYrYFm462wrE/I
+WedcKMfKwHWjT5cZWgDxPdXGaDcOnToOYW33b3NT0KdtrZrluL20tUepWN0Nor9rm/TTiSc9Uhog
+fBapIHtcdEdCUAKAOfRmtZd5qB86AHsRh5fVU3eJW99VruMbk/GU2PbRGtwX066v8MV4dxguF1bf
+qhsDTJHwy+IBpLwxfbVTc8jBH+AZzjHDKY0JtnJ5hrTP0yi8fWe1HV+v/tx5DvMs65qS6MPE2Zcl
+Un/2KuN7SM3D5MWnUer36WTuFKOIYuI/ELmicoc/v4Hncti+ga017a5qM2bnWfu01LnCAQW3aRZZ
+RcuUHP5ZZx4pzt6hNBNgZkYxFJlzbWn3FjKHEJnRHGWdA7fYXHCdJs/4VF5nAhXCBVg6tS4Fcpe3
+YUpfDJECKlUrPVU24ww1h3coVK7IVDQc1Ks+ctNWC4cW0LFqw0cfk/q5k83r1MKpHtYxixrFK3YO
+imYOdxYoP1ap0JtwdWk1CIYlxwVCHxu5gyFCK5+XBzm8a7EbWg2fRo9TJ8TZxRwC3f3JK2ZUhAmh
+TQ0PE7rAYn4qKLjfYTRnRwVhS2hZvD2ybcr9L6MaqRC0u8mlsz+640VVCiRJ3bhCK83xPeMBPiJg
+zfdebTQsospdp0jO2WaK6l9C8GauBJmrNR/bqfpi4lOctNhYQmKl9R2WIGVnWnZ61tcBEmOlyJdR
+ayHi4oK+rTEFhWOmmNsPMPaTLfOffFI1Vk3X5RzVKTi5Gyu/cYwxf0371DlljJESGlDezsb1Qp2T
+qWxbFWEO3NgF78hGZmppCTY8x3hGcSDDqaNuTScXFpsB5XDTCurwWCFu4Pmz6FjFhQHmDmEGum4u
+hiW095mEKiq13IR3X7RtOCdz+8my2gWguYtjIRMj4x7O1PfaaovFt5tSnC2BYdFP+rTcic5mEY25
+QD7mNfS7lt1c9+Ts4GpZnOfMI7lgTlzrVBiAoTRzbBrfxeHlE5cKnG4YS9y52sKoSFDAoaHAdpIS
+VW2j8PYrNh/ygWbUdUZcX6Q1GCTurJ6fDZ6KGR/D/WA24moeCuS8TlN+IM3JNzYv2HBVga+GQuW1
+cdv5S2cgf2zqOUdSUjauvw2tfcv6L/bOY7lyJL3C76I9JoAEMgEstMH1hr4cuUGUhfceT68PnJFU
+vEWRKq3VE9HTEd2sJFya/z/nOyOSoKGzeSGLmEgaPWcnqrcuwRXgwyk2WDbYJtPsD9i5wmFh57MD
+BIuu7yNW4DPR6/6XhBbK18RgoxcUGlrJJBXuGe8Q+7hROVeWYB3R5tJ9oCpq8NOzW/5wjCHfBVFk
+Pj5veVEyshnOS5fQHZe4lcemVWxwCxTAnrQHHd/JNM6IZZ63rSC5T87sONdW0rBWJknUbtB3UCvF
+7j1vlkewKjSWTArbtHtogLYIwVL/Ku64bA8J8fgjMARzc9KI6yTgQUOgtO2I2u0AoUy1yLwdMgC+
+DOOyJXVgzFO4Wzba0Ab32ObR+eiYhVjsc/b4EObS+7qKgusi4Rmks5ny9uTwJWXV3ExCaz/2worP
+UeX7V5NK5b2OPX6fQQ5YR1VPfycVct67tR7SWxSxsQivl2p1FNH2E4MDsdTMd5gCPnD0jbw56+2P
+jRaVV50scDrP0bgKZ4riQRkFN1Nns8deEjP0TNVbvZVeF7j2vdCa+Srv6KVT4m7ddahMktnmKXMp
+ekVyR+Ma37XdOfjh8yhMKJDI7heaqWgd1iCu/GgeTiN7a87c2bxtSPpeWyP1qjmICR4slI8jX3C2
+RRZ9NklGplWMD4PyntEYPyhhm2crM9JbGsANNX3hcrzAG7euMsknZva6dq3RFr+Zg8nRtwWNvnuX
+W7844iPljRUJSaljNo9RamQ/mzHIdlIBAqUAQR0r6ayB2ZgIrvsslf4eoFmyi4xZfpZSo2MLiTP6
+kdo64T89TI8bC8LgJg9U8pMDbPujUYU4DGNWJ6BYu+bJsFvAPIxZX+MIFqduQGa2tJ6jg+/KLtrm
+IB9Jzh5oHtWA2cI+oAI5+mlwDoMCnkKCaDZfWaXbnaXd2/7Czxi2dcJXgQpJ2l9KLS7P6VhV/caN
+rPhbI3yqCBNJEcA3e/s6c3rx1c1hZ3k1eOZbOwwF8QpBYJHqYC4VXb1GPeaUOVvGduDd1bXltV92
+96XSk5NROWyGurrVYq+pLD4Wx1woo0aS3udFrq5SvmALIHaBY1GnLYo4rTad687v7NtEIwwGAbf/
+kVYdlXm2+Ve+psWYvlHlr6gFfUqVEsE3l5M2J6m2M8S5WI4qq5B11bl24med25TCXuUdoGUJtDQl
+xwNZKXWgwNZOhM2Cni7Y/mobo5pAN0sTWgkH9KQ+usVgPNpGSN0ZQTUmRU2RhXSi/NatGntsm/Vs
+xAlYSrLTfsDXGb6Gi7h57Ay0ytqACA077yARB/A8ebtYTIo1i5D2MTYTTMyu7nPi6kqsRWY5BkdN
+mxF1UU6ha+6EQp6BeTnXRjbMt0mVZSbMSFdMiHFmdWStpqTc+7L+jIuIRmes21x4YqTBD6017Edt
+AnTui6jeRIZNj6psaWdyVGrSA8r//MBU+yEEKj1BdzIpS1g45J3yh5yGI7s7gJt+cZc819qtYE+A
+GKULB+ufF/cU2CPUcveZbhAdkg/TN6vqbqdZ6Oc00KgW2vy3Pr5+JnWVKI4wfbLhBcWKgCnzbkpA
+sNaF6Hd6FdibvnXwCDBR3SkiuHZTNCIy6sIKiVxonfrKVk+2CjSvWiajyl02lk5en1AImt9GwuK2
+I/uLY8aNjjxarH667gf5NRplf8oG2CboBmq6NNKecy8m98Rct3A98RhE2Tge3HEBaMyNQqeZk8I0
+7oYyzU9BPAUgrzVbPJRdB2uFb68/q7IhVMRE0EO9XTnDGvehzvXNFiDlJKCsj6A9PoJ67s2N6Zsd
+rUjRDA8lR4LvEnn6je/PxlNvdP1+Ig2o8AzDYIPr2+KTCSB06ecnhbm2R+F+M3mc0Qp7G60taTv3
+zGoYW+rcbvdEkk7fJUKujqo47BxvZAHQ9rMKY/Db4JYNAnQ8XSk6KXPk+/EuQ2Afr3zcQLXnxtK+
+oXzL5n/sS0p1Dr+9lTKTs68IzSOug/Jj24fh10ABbwhiH43OkFHMsnLrKm6l+Z1pRH2D7+naK5+g
+V3ZtRvbEtNbdYrutzpOu+i8NxBn2bIHhoNd2EM+4TbYdmy7Api8A2HhRwSaN/r7WfS4LKkueWxGC
+iEzDRBFUy0M7pe1R5E7+YPhj84H6RIYembbbhO0tUU/jHA0Ppib1exsZxKMLUGjT63l/3eRDdk8R
+0tnbqp6OxPAV10ZYBj8JF3FPQxAkvxTNtYbuqtueUkHw1MBB7BYvPseFZ5KM5PN6siscGePQ+dcC
+tdfiQO/lOiqr9DzKIbhCwbCp8SVgvxPZtsLmdabsjdDEKJBepBDDpR1hXAoC+DWliM1V586PdqLI
+J4QD/mXKC2tXOfKE1v02gSy8cku8KPRWg00jQHF6fd0W+8iqYNCUbIYz8OeffSAu61b46VGfop54
+Iu3erIzyrsWQfR+IAKo7RHCcwf51MEx8/KXWfiqN2vAswqIoIPvyOm1T+1Hqtn8zIif8FczmdB2m
+SUx4Y9hyKigcalapu2P/c82OJ74T9tjtCyNxbylOtV9lJ2M8IW3zVWpddfSnnCYrcipwugHIF2jB
+V47Aa2xjYqQvMPO3oJ+oMVv9jiLmCDam0Q5+3ap4DdRcnhE/D/sKRFlJgZmUrGyETmfOeo8ku9CN
+K63GxVxjSD/FzmhsOIOgaSsHZ6OGaW007Eq68gMWB9hxDu/1IKzouqSLc0wbs74FNmKuCFBqPpAC
+NR3ZsyhOyNRn/lklmZnwT+xSqKggAgf6ojeUTfOU3ZTOONiog8NEYXlj0drfNJPGEsl0bt3UaRFt
+qPdV2zbFg9ci2F4TtoC6fm4RWuhS3ig0eGe86c2xbM3whm50smmLcLoKtbQ50Eya95Zd4CQyQ3Iq
+NMv4qOBBnWZIQId2RMZESYLOcVC00bWdUu8RWT4ytdMNwMyBNAJI801c53IbJLl7XeN2OPWJG0G0
+0NgF6GN26NLS2arEzqhMTFNwCP2SHx7Evsuz9gq9cbczCZQf9XVbkd12bugSwKM2ejyg9CVKfBSm
+Q6zFEo63tjSoI55ZAy/38IQNH8q26M6Ro4DjsJVbFxJFDyQe8xhwcEQvSRsS8wuM3VTHFIlTQhjn
+gdM0CmxW+DQFTB/4fcnbTH0Q1dTsnm2ZgYzyhVUMZEWwYGRdVx5C5WK0WQJINFAqB1lW/jfHJhF0
+zkaC3eqsPfTmgnyvOqOk0ZUFKN+U4VLGC/X03g674IfF0e04hQYhEtPIfE4Bzb8xqUKdrMmgIj7l
+xucOUTvtZc7YOVY1eu+Uv5qYilpdUUZ0/OL2uTYX19Q9yVBxNqgbF5l6og8/TQ5On5+ZDMjV6y/B
+Qii3bIqcNGfcM8Wx6PTcNMirmloZMr+DrVGiLzgfUNWKOLs0BdR80goaftm5Rz9vFXr42dIyGqdD
+1KT3OqrMLbpyDgBBQmwWL6IL12OBuDwXRheP0JXAced4WHG/4+9YpWqgWd9OX3UMJ3dKMr3gZuKk
+qfCtRQN7TofQPI7kJI9pjaV9wOfXb+E+fdLth6hBmSb1+RaUwdIQK9c+CKslHc/2BoJbb0fcXl5l
+DndJPNZbkF/RFrOv9CjrVUd0U/ZNEOrO2ujYDhjIR8m7aNAqNrazmzX7OEnbXqG2RJhYZuwKfODz
+iTY2nk8jADBNoos1ASLaV1Itmy1B0vO1po8Cdb1bncbIEmwDucYC2fNew2PInsOWt6Z7nCV7oqYk
+ZHKSzvg9cHmsHdhtwtbwgSYUW02XXSqrFMcoEA7x1+cAzySbqwf2Ie6ZBhcCVp1D5rPYNq+4sXrb
+Bz/qZMFrODG4k0ZS5ewJBU08EDHLkksllzJmdLKcgbNk1KFSwpRbd+t4DC3/8f9ZinX0vf1dbi+k
+seA5/2eRPtlNL5Ob/vUT/ynQV6Q1g1TCO4wWH8go9v3/FOhDHkAtsRBl2QtZSPH/S6BPahNR4Tq8
+FguDN2A/2IsNkuXw3/9Nc/+BmB4ouW1zZOCH/kqef6nNJ/bJdYRhc05RNkWiC21+P8+k5nb50uvR
+APmziq9s02o3v92R238iGX+Hsl8AVuFmMQrpU/gRIOkIccHnLRAuscTw9uPxROvQadDnyC14CjDH
+rkmM0P5JvvgfSb1/XpXUDe4eDh2QglRZXzoOUvTb0h2dmpOfC5vaGcZtmGIYe/uqXhvFZH7gqEx+
+NvuVl6MwpURxrTNJxlYoPuvobw+g8ub126P8ee8gtlKHAn6OhUNeon/ripWrpaFLkh8Ns0ULTuMh
+qaXsvMKdaOgb9EA+vD3m8tR/A2vyvKTB9gBsvIMDiNSwl1dG9bmCSIWLuKgQkVBDk+u+Ib5a7xz1
+zuW9MpTiGRkGn4YtlMCI8rs5RJAZXGQddQXARySduvm8pUxBHzXO0uPbV/XKnYTHwRdlcxt5bBdv
+hSxVDoYaIBA7ifiAWVRh9I7bs1WY7s1QM1W+Pd4r78eL8S7uIskjc6F6xqtzYy73mUE9ahOjgnln
+nNduoRQGiSuCyyMD7uUtJCt7niIKsyjBq7BfxfEcT+s26uYnM+irdwZ77SaiCiXaiUoJROqLwdyq
+Vk4TT5RDJpGsu74WbLxQOUjLoQg+Otbq7Zv46sU5IFsE35lkmnx5cT3EKAd5QgUJAZ2edGP4Za2w
+2ZkhQnp7qNeel9It0+ZrRuMu/hgq0saBEi6nEJ10pdqXWwxKwfrtUZYbdPFtqd9HWS74NzdUP9tl
+3RhckJyLmzC0g51Dxtenhd1+HlA9fKqd7svbQ752D38fcnmmvw1paFKyp9Erb6op8rYiVddNPCPV
+zoL6w9tDvXoPDUs5SkJkQiH2cigyOsN61kLoncS135IOg2fYoZ75fxiFl52PWVnMwBej+NK32Bzb
+lVc0dA5M6rHbqC/U7u1RXnvVlUN6I8GGMPjdC/AOjbmITbGCeFa7plo5bpocU5X5v7KyCT+4zFft
+Ox/Xqw/KUUyHLn8ib+LLuxdDmqojZaKft2y1S/vuUVrWN1EJe/P2pb32mGydNOdl5XKEffFGKKmH
+wSCZMkKfUHOKKw4VGDpEb49ySXpnHVFM7NRUgUGzkJiXnHPNAUYmcxCeJmCOJgf+IQHubMqyDHb5
+UADrUHLn+2Q7mbKlBIPUi+RWnSPn27/Jn9er+H4U6BZpYB10Lj46FH163/esMgYB8eoOSnDYHNCm
+Z807T/CSev58ycihBOw2R0rj2Qz527c2NoGzIFVqD49iQu0HE0KFn2nRPV8FShuP9EKLTZ1ghzIZ
+fzXS71zxDFqjdQ/dpFXvbIX+nG4gRhl8kS7cCoR3y5357fcZJvZHWj+SPq07A4e4wM2UJ1oUZWvE
+dYIyWN0rPBhtNr7z9F8dGbwAu1cXDrhx8fCnvnTnoGLWGULqal2QCjRGvrbL0DRM7mMRD9X6b58y
+1/rbiBcf7CRMJJAGaxNZwg5knjhB9dDlf/0uMQoPmBtHwg58yJd31LGH3GRHWXnmRCiV5o5ktlm0
+VN6+lj8nH0ZRJntYZRoKWtTLUfKCpJrGXsysgavuqZFWGzNp4p1OtNM3FJXz9u3xXntaS1GPXbPk
+O7EvxvMTqGKpZFlS8WCV675ytJPw0Ug4xK5eiX5y2/UYsAt85zrfG9d5eZ0IQWj/FBaprxlV9Xgo
+ikMZdjNdSq0+EaZIcwbU5TvT32s3d9lt6qbOBt4yL6a/EYdolUIooXxtyC9UgMdug+wp3qGh1qHL
+5Fr7+e3b++fM7mKlX6zWwG4wP1ysWB0hlzlcKnKtffrVqqoQbWf0NMCy/P22k600OxhlSl1fIqhe
+3tHEmudkUGTWTMSgbvRk7rZjK9/bTP85o5ITQrWbIygpWyxDL0cZAqGaUTF/6FHqEwEOS0NRNKvn
+6e+f1YuBLqbunHJNYYmp9DS7HHZmAuc2ie07vUokvUj9nc9guTkvd2fLudomI0Owd2fdf3lZfMcY
+6EKUsGmvN8fQQZKBE0MHRiSdTWkrUO4D3C2MPrD7//5TwCpvCZf9NQdy8+LB2cnozEnL6j9rrfuQ
+Yrm6IU6qW5VCVoeiVjNlfMLt3rm/r7yZrtA5KLPDVrw34uUVcyZRsFzpb0qDBL0SsAMePepYkQ6l
++u2P4JVvnUCy5901rAK+3ZdDOSUsJiso2VCFRY/vpuoOmdnKY2S5Yt/6NvzXtEIF//aorzxSShzU
+HdiIQE2/zJ2rw0rMbcuoZkez1kujiIDgqGiOdLC669FC3pgjml9VVJjfGfqPj2RZdNnHCcMCsyAu
+P0XsKHkJ6wTbDVH20PByc0stpr96+wL/eIKMInWqA3yKbLcu5xaUHRR+Z97ZGQAxtFkwcWuOuGDt
+Szv/J5fjf19ZWcZia8oJ0KaWo198Hwld1EiWNCsTTK4lxW5tfsKek9rvvCqvXpNFBJfjUBlYGJov
+ti3YSktn8fvyVhK2iV/MOtFHyw7V2DXvfPKvDQVZ09JNwsZYaC+GapeAjCLLGKqiJ0fZQ1uX80R6
+sz7t335Qr70O7IX4BAwKs8blGltlThiNAu1TDZZ+U2vsdWHPV5u/HmVZZvi8uHm6bZsvb10T2CEK
+IrqpqaSWr6sm9MCpOe88oFeuhQ31Us9jDITgF9MGX5FBdjhWuCGZ3BWVT+1b37n5e2fyVx6OSe1Q
+Wqw2inVm+fe/bV9t/GmhFiSkKVfkAbUJ8Zcko8XY4tx3kuZevaDfRrrYE+TFVPnzFGN1Uv0nBzLv
+Jhd++c67tvwhL5YXlw0HqwpHA+Zc07q4awAhqqwwCFA26Cueq3isHjJzKA7Igi2iPodx3L39MhjL
+n/jHiMCnXRO1vCS95uUNBOoXp0PFiBYqtW1bGeRm5/jZSaGBgAcZJdwjsMPkGEl3B79A/NIm7djI
+HI+vOST3b/86r91kHqSiDE5tVlz+NqEuQ8MZeWvwZD7ZnaZtqlD179T5XhuE3CJaxxTReW8ubrKq
+BgCbpYSlGKEaWk1DjJ290dHNvvMNvPY0gfNSMsJfD1Dn4pXxrSTXTUInlkhXBDChqfC8a1tD9vu8
+hZ719/fOUbQMwfArYo8u5ilIfGqEFApQsZX+Kenx5pTMoOv/wygUOyz2P+whL4vadmrX5hQwG8ZA
+uc8FbqrNKM3o7x8Rt40DFLMhD+ryzpGDpNElDpc9qh1epwM5vEYkw78tE7mUOBZFFysWB6nLcooz
+9xogAt59vJvZVTZBrSh9/Apv37E/qxzLMPRhJRl9UJWeSwK/zVGkIBUS7yrSpM6PztpE5otRpcdi
+kK6n9P7aGeR9qek+77rtn6h1H8G+lu+sLX/srfglDEostAiotHBjL79zvXPbIGUToHoBeHgMm/zW
+QpvUn2U3DBCfBzeNDnVPauM7L+YrnwEnAYc2i8lCjUDt5dBaEUq9y7AuTxm6slWoK3QIZXQ2rQVZ
+2fj8/e07/soHzsLD7EFGp7sEI74csEMOkmEVYU5b9JUDGgvk5Pic3h7lz6UHDA/8KMEbtKSgXdxR
+6s3BWNs8VhXSHk4dslWmHKyvBWz+nVfozzvIUA4WcMHZQxBU/vKCmCuVXkvuIKpICEdTkcLb0+fQ
++Og2pvwRDtngv3N1y2//cl2AWi44+loW0xdL7Mshw6SSIxpKrB55pq0tt5Kfqm6Yv1Wdna4NIxff
+KIGMJwRZxT6rRfP09s3983XFQMvpRVFtdyGXXczR2Dv1oB86XL4pzKlU2T/S2n6SOcUpqDcZHuT3
+dpR/vjTLiBxY6aRRYb088zdDFCMpB0uSa4JzZNV1CNb69/JPX3lppE4vd9mAUbq5jKSrZwJlcnsJ
+BUjR5Ui8H+TF+Ub4oQB+EL/zHfAqXjxFCmsObWVaxGx4LEK1Xz5FozfcpjEnOEQZCrp9x3T9UwuB
+va5gADYPow6KxIMSA7J1Gp2pPItJlOaOrT0ac7pkRYUp1a1hmvD9IObXYgGmEP7oit0rPIA8b4r+
+4JpzmuwGn17ncXAa0B5IkKdiP+RNGe0ps/nmkZd6Co7+sOg7CXcxijX86iAkUigBjLQ0krrF6djl
+tyEixfJgJiSvETweh9nKeZa4jrjrH0sWn2RVp9gMVwCasJQXdg/JLFGQlu/ls3zWdsAl3zU6Ouq1
+UwQo/OgGIdM9YcLEBQTNYpx2RM2i0WUFSH5kuQ83VAxwsfe6gR4aOkKriK2p+oV4yNMkLY2pDdBO
+s9hFR4SmaysWCOoDBxHUSjUB4InKTzkaTNS0ow3ur7reqLyP633aGMm4CzLoYZv4WfFcC4E9Yeg6
+9gBA9vT8qKkUZIUYNPCaYdSOCHMHMyaYbhFf4xwwH0dcqRC7SnZyayvMDDz7TtZCifPnIdvRGhM8
+wrmgDjL+UwoOkQ3PUUgRY9tTFCTivXej4NjB6pXsYQfAK/ow+8OWJ4DPONBnDe14UAfO1qnLDKbA
+MCu1UWnVklv7LIMXfPvFpuuLCEd7RiZHrnuzQ76LN+fcTjTsIdlHVgbRzkvk1PSHQCNNdUX+BrFw
+aT1GtucriEfXYVbnOEbypsEE0KDK2lepgqXn5l0MbSiKM88ojAFcUxhAUOXwHB26YdSmc15RVkKq
+tzjL6xydouc6efQ5qnQybQarJaAwTudpGxUTi12U5v5XMvRs0siKqMvWkDQAGoSDbh1h4ua/bNTr
+uLLT/lc46yj/EOvgiYGrYJPbm0AKSCDiV5u2rZvvZh2RsEtJNn1ScuLUXkCNup4To7gmxio0d1Nt
+wmAKrZbcnlpicQIORlgju2gnP85i8XXMgJse4a7JYN13g/1tcuL0y9C68pyTrHubEU2MLE3xDD2C
+8kaOAAmEmQqJ2q1FdRWmn4Ez2EOgGn9KChcGdSpL9ymtcnIW8ijDiWK3St3gZ4yIolNtfOfaztTt
+5BRC3GoxycXb0nWafFPMPUHLEl996BGOBwglsuzw64jH5pece93wJLjss993M9jScMR2WsdksuEZ
+HrJkK41qvNN4OWBitGqE7tTO+a6z7Tx86I0ywAQbN7BaSCqzG48+rfkrcjPKVaT9oQbTiorwB4u8
+GyjFVgey15lg53L4EWjAguozWmyTjAOyNEA9GUZWQiNA+QsoLsLcBSoqEGu+lPRmLEu9PpsaPKu8
+dRSYDDxbtqfFmnE1gp//mcwOwQnVXNf1F+I13PErO3GZnUK4gcF2zEQ0HLUsq8qzJhM3vRdJlFZn
+I8aPdVthmJ7Ogd6WX2YLePanAGmZ/71vLaE/iCrP+i1PyLHvKpupc2/5wEq2uZ4P6thGWt1DN89q
+uE5Y3eZT3gsxLp5f2SElc+Ww1nmCLaoXwfWB8lKBcWDRGetdrc+B2iYVUQy7Ssv8n7HpAxpJBkKo
+EJzVaJXt1O2aVYPYiy5RgLz/W2fkBpkJrI9asPdR1Ud3jkUf+wj/mR9wfStWm3Ek5+zg+qSw3YY2
+3Z4vy4tg/oysftTh4BS1AOGhg4YY7xI2iPlnoqKS+CGfZvKRWAEsavxYWtLkkx84rZ6jCG46JPVV
+zOKG5UfWwbgQmYbSJ9gMo1n9y++oBdzP8DTNE0yiiSc/oF1lzpRJnNxODjGimBz6ZLiBlGUCbxJE
+hqz0XsHQDXqTiyowSFE9sIJ6FFeNX5f5aaiyJREiIDfybgjVYvewbCZiNivQ3CpRlAB8ujBnbxu3
+xWeLVD+IZWYyzThhgqA6BmXG0qFT16PQGAZJd6UMlJEPI6cP8ay+Fc65TuAIbMmddgjctNysviGL
+kKZvn2SIPUsn8tUKdWpcrTqOTB9wEo83OliwB9M38L+VpjVMXpE16rtCCQywxpeUUDU4v8VqQkTw
+OJszML9ApXyqrQ0Oj418iTAeEGh+xmcPskQLlZOtMmlotzFlfW2dOB3wgCnCNYUGJxw+hxr9wU27
+HP02CQ6b61SroCtRXtSRKBfxFxCr5I+Ty1D/HPnpeWUQKUR1XiGGXeHQCAgY0SuEV9Y8xF8ptKT1
+1dzYQKf7ifPyyrRL+r+s1ZgGem10byaSYd1DrhnOfZGKQD+WYd9NXkfsw43sbQvo3BgySdtl0jtH
+36mCcDU1cf7DyhMfRXueVz9wMVg3EGaMZo3zrFProgen7MmhyD4BHFLg/Pyq+JLWcUfkYhoXD4Um
+0axrnV7QEXKD9Nawp9H2RFekGRqkubGWno0/r0CrZtBL2y75iegknFZxSuYoW7oC2nzUmKl4kmnZ
+wFqdgura9XMUp2RRQQqLLdvGp8CG8COH3THziikTDwS5DwRDhhkAHGKrk3RjdaL55phJRwSWDbXT
+M4sqeBr1RGYek8p8UvNUPmLZxZ2YZBNkOnNK68fZMTDyjxMuHjWboLF9Obc/eqM1702BBxETVfgd
+c4v7IM3cfDQrUOurIQy0X2Y7dLcUNdJvbc807vmBLIVXkpz4fTJ797urpREJYiQfPloEd36rhyI5
+kpUNMai3nOaHO4/Fdxo/AACtSRDrzbaHzI8YzC4JBJpTQd7EJLTTEb1+igKEyJu0MwjyHJuCSkwS
+QXj3enMgpZQ+yCw2oeMAMgPwb2u7PO7iD6h1MexiDJbfmlZCXMxjM6hXBYU/i0TbgV2L0wF52cGS
+Suw1va3omqRXNewtNxIhTgV7iYHTg0SdSYulNUv1nTgw1iuAoB3ApmxDMzDtnwZ9SskWjiYJuCWa
+1GDchjQweIg+xjiiPpq4vPHxSgjPmpKiX7XQlcQqFci41taM3NpT7pQBRIttdj8KC+hXd2BRgMs4
+j2vbbiJCCIUe+bs0WbizYo7ip0raIxAKaufwtGkFbaWUJT6cLEvEqgycbBtbKf9oVsDf8Aeq/smM
+jeBTnbDZ2FsQujGb6f5wgoM6fFaxA2DXNdLyJknht21tESMMYDZV7ZYUUJ0znjuDIyiIh5ygAGHX
+8zTcvKjT6TnJzdxl5b2MO52MVxU6dxkeHyimSoOHm40LoYNQQnXbadyYAyl2JZXrAFkx6vmYkJgg
+XGqKuibL62rWBUG5cSYPEOVHnHijZvXr1O7I/zQ5cfUecwvrQjNHQJFZ9rQboXwfIF44NEeCUgNr
+Fw+KHYFD7ItnirHgOxmM4DEMKttYm0BWkw0fqWqRRrPurpUdsQny89w+uWlsWzu01xrIBD0cUzJq
+3Ppra/Ux0QgkTs5e2IRQUVMcDj8nWfUw+ro4uDNH3f5qaUZaAc7Ctr9WNMW/zG2AWUzPpd5uY6yg
+IBeKpL02/Tj4MojQZcMxB/pDljAfs2RMTFV62xGwWc05mn4CbSvSoMZafgrH0MZSbsbyXDt5cpf7
+iAdXIS6x+xnilO6VWjWext7nF+rTAK+yaAlU7PHxirWCozmu0A9hDABUFd1OlRBPYzQiDRjHtn9o
+SZdh+nbcmDREH38tABDoObXQpyeScMDWJXYPO43aOZkRrqNSDOzdMqeOsAaSFfZX/Tw6qgqj7/iS
+S3QGbE4xxxLdyonNApwJuQnX9Ya83+AHGUmpuXVI3im3BQ/I3Voqx8uZ9OmQrrmT2T2H4+o7ToGl
+bF8YUbWdStU0exeCBa4RB8n5quxikx1LXafTdppyWhSqmcQ9XpiA48M0dkS+xkVz4LLaX6kwq88G
+5qubqYhb25tbu/gJ2Xn+Bk+CJCMke9a4NkMbX3oZl0RMUoDmaxQoG1jGRwunEQayO2OyzA+inZkc
+2Glg1EM2KT/Uk8MepI2Neo0i3r/TIfsxC/tFtnfbOkuvDC0hnaAre+26TDjFkl2BN3VKXSfYJ5Pi
+3BlP5UIKCH3SAE0nMY6+iVqRnFZreTWcVt0O4Wh/dMrKtIEFlvnPXo+Hh46InM/AfXAi11BITnGY
+Ym2fcst+EFE5/iJ9s2OxbH1117N3v5qG0aUQJfhcO1Bg4UrnLPQxNWLUaQnNgLsxJvR7FY1aQZpp
+M9/3eY9yNwBG+xmtLblnxH/0D+nYDU8icwdwluxaDg7hC86RFXBycIQi+4eeGWfFrtEKlq25jJmK
+ZvymGNJyvyFBMXcJGJoXMAcZAtSl2xIJKrnebux7Iop6fKRG538h4KS6D6yAgEy/6/NpPSHMnVhp
+hO8DSawBJFu9WFLVqOXDAOBTgeroxOM2rUP3SbgkPOMGA3sHwDrCWcKuPPyWEtiitrNVLkUCJ83v
+ESmjMiJtIKk8qnXk9tYtfvmNU1F/3iCvwURMM5/OhzutHLr8/YyvNe1zHR7lnLAdB5Zr+z/YDsfD
+lTZ3Xb0fCXqqMQwpWT2wn3Z1mpxtrLaoRC2xgeqFlH2G2bsHfatNn7uhS6gO4LRQqwkH0LLWAfYj
+zcvQ+wPH8TLFUyT7D4SxEz3Ny2b6q9SXiifCKxGv02jJrNaTJb96fs6yTp5zrSn7y+AME47Ua3zT
+uTrh4mYpRRUru7Mol+hskuHwGltu2gQ7CTLiM1l3fCRJ5kA1gIQDlXlJ5p6GwBJe9Bzands1W8Pc
+1LNPaiSnbV1BnCFTlvmbddsnFIMiq8KXaSF6fCK2rU5Wdojui68gdz6pJJjJIeNI361gOo3WyZ27
+csbpa6VAh50pFdsutvtqJd3M/5ENaRuvSF+yYY3HMIDn57R0lwiVGjLr0kP0jT6WK07fxFqNWht+
+aUSHO6qIaBSwtrCUO+sgT2OBlydsiP5yKggG6jnnXStmPD0fSbkFavdcPvz/eIjf4iGEpMf+W1V1
+/bX9+q9/ff01+/nv/3b7s86/Zt+678VLw8rzj/3LfiLcf9D4Q0+6+Lzochv8if+yn1jGP0yTuraN
+Fh59q1BUpf+VD6H/A7cqCxdqDVMn5XJRDTb/ZT+xCMUUyGQWrZiLUOVv4iGeG7j/XYem2k1X12Ye
+MbEZ0Ny6VKKSDT7lNAXvTtunm2DjHXbeYXuzPXjb7dX2nr8O3o5/8jabTeCtjvvjrz0MYe/Xer/f
+/xq8u4d3usDGy1L8n7/PUrj+rZljoROFE2jcrb+sP2x33ma12b9TeX/uh7x1yRel96TQRpMy5N36
+an/lfdmut73nHbzH3da797aex5jr/Wq9Pq3Wp+3dytuc1u/8Bhdl4z8v8qK1kcV1Y+mxcXe1vXk6
+bD9sub+rr6v9cfXwzkj0FF5UqP8YyrnoPzdMhX7PxV7xhE9c3fJcl//x/zdP26v9+ubKO1w9XW2f
+rm4qb729unp64jfyzruDd3+43x12u91mtzt715v96rg67XkTHs/n1X7leWdvdb3nt17vuWH79eru
+tPJW3n5zvFudTusVr8s7Tbb33g7nQvvZNnUqWt6O7fruy7ebwLvxNo/XK91777Y96+TfeEeci8J+
+0ts0EXhCp/XV+j/YO6/dyJE0Cz8RC/QGWCywNOmklCrlpRuiZIreBT3fae/2DfbF9mN290yVeqYL
+g70dYExVyWQmGRGM+P9zvuP7x2umxJFZcR6Q7qZxr7lnr8wKlwt2XL/CNzJhNjcu/7Tni+s4Yjwx
+ndwrly/xp3Uw7/fbK/5/d8u19A/e6ch1Y74dN+vd933vytts9gHfyN8PB89bx+DmyBi53qwXNHZ3
+3DF+hvu18bkjF3wjV//peL3ehGufn/lhSfv620f+0Tr2ywH0qbtI0lQlWVwJXpLPyLtzt0d/f74U
+Lh+Bd8V/vF/cAO3c3furG6D/vA4s1jwi8eNOP3E5j7c7b70I/MG/9r2L/f7IoHth4O75r88U3m+D
+oHH542bHJT36u82Lu/GfNtvN5sXfX19zO1jTrm8i131khdtwFblPwYEJ8eTeeAf3PJr22/31/uZj
+H7kfN+svfb27fkncu8V9jdw9w21/c3N9w18/PlgpNy6T4OqWScv/n3a3we3uOzd2t7t17272+8l1
+I3fLrHm8vLp6vDrsgvv9Yfd+e/KCrXfy/KMXBLe+++1yvYOMs1tmixscDpcsAocdl9tn3TkvRHzy
+7yxIR5/Ztdt5fLw9I+bC2wVXjITzNz7c8s/r/Lz1L05PT75/673/YhysC8Vf3ZBPPdK2aevYWm8I
+S8gTF4KB4F16DFRvd8F79bxfPQnOEuu/esV1afvhUVB0Nrvt9RWv9wx/7/tun7jc0HWgM+Ou+ZDM
+K/7KdOF/3AN3fv2rf7258+/2N0f/qeKmb92ni9d1/vCGr7fu9u7rsK7wTNMbBo13GzDLgtoNrr6l
+7oFxdvB91fVPrIQvjnsfXK3z2nd3fsCjwD2sq8EvZtgn/cKfl+hPj7xQwU1Pr/l09F/u9uvUv/3r
+W4fm4hf37tMTj+e+Iim8wgUD55oFZ30OXKzXjk+5LkAMLQYS44uZw0C74FIxvFm2+CvXg6/tGJNH
+PzjwR757s+fy7/gqzw/+zEzwmFM+z2t+Jb9+/ZZNxc/v77h5LBbMvfOCuL7ifuO98C28BdfjLqzf
+zl8Cd51OO16X7+U3ft1e8+uZAvwqpvJ+H6yr7fH45PO82t+5XCh+hofROgJZOXlz/Dy/b/1l3iV/
+YIk48o6YiuxquK8PwWH91uCw5/5fnVctPvVuW/HhubXuJtgxntd1fl3DeW9bfvLG+8ZvZdJ5h6t1
+aq+XiQu1/jQDo2DF4XZ5/PNf37L1lv996KN8ppCgIoZ0HALROYd9emongFeJjZtjytZTdBWBAvD6
+sRgupNgYArsIOTyXrfyLF/15lPz+oquLEV3cqkb+tNKnRCBTGZ44c4dqdsrqJQ8WGge/eJVPHfrf
+PhpbWkTyOGrZeP48qzVIK3T4+GixPSqjWzgS+KxlBnMjg8D5xYv9g4+k6CgO1ouJXOXzfsGghGYt
+5Lm4ypyMHrj2EC6vUWz++m79g4/006t82iyIqlKJaudVhpgwp2Ks7Rs0hmkQT134rwm31qvHWcFA
+v4raiDPAp5fqeyU2RchhD1OesQV1S1xrv1i/+kBnmdnPAxBRisLJBYUIEc+fFTHkQ8kYuuhIqA0U
+IV+NIbQAsVmkxxza7IO0+l09InEjaePIxnDs1EHt/KYJZcttu3x+sAlOmDww8Wm8nyEhfZvhZ6CL
+CuHJ0kLv19gukiZJb7ZiE8iqTaVvOy3TmNJ1VAzQhLWcFifO0EQTWeWMxwE5mw6/V6I3QZDLquKU
+a9i+Xkt7CyCEQtzwSgYyvi/V2JdBUYtiNxNvAcTXzHDy9GGjK1snV9uHkcC++KCq4LyoAjH2pn4Z
+3wFLOYJeQBgTorIUECNgsPSUDaVOKOTyEk3ldnJbAq3spweNCJMKkMsy53D/V7FZbI7MHs2ISRdC
+wzCSoa2rWeXaIGSAkdDUBj3hQP/wJUHxFOTHoudeos3FPYTklc+mx3AxK5SBIlgIeBiJfBS5CMg2
+dZ5IrmieK2HRr0e3ShxUmGhUIjB+1E4gxw6wmEwaVS/t6kaBRqORaJBlpOvC8oEVvsi9TKOMdO7S
+KxGBEumDllvsTLmgxQyYChJsQ29deJY0D8bGakR6ygcaxi4AXPO7adbK9yJtDFJ7LGt2jqs0WQ/m
+XkUxJTm1c9Xh3dV2QHGoxdVIApEykGJ/TfQg8EAw+Pq3Uo0IDSEd6HllK73CrcG0bAkbbGwjdEIg
+BlNOj7Oi52agk2PV3g8FMLSNWeoE+HT2lI1eOhnN97IbBjornTMytVW9TLA0LsutyIbJ9DppfQdl
+VsWX6TjpElHXizb4Qm3il8x2siulrGBdL1WmQ4yOFC4LluZBgu0zd8pGc8b8GeiXSk8LaNBxoN8B
+M7YpiJagCOz4pK/bWIhAWQVOjl9jV8BeeqT5aSR+we1aQ+lp3Hp5USHCWAX7DcltmXNbgHcRm9le
+RBlAakTVNjLgP9BK2cciBapFidMGm5NltKS9fOy6bEcC3/TcdEMHwElxistZIlYXpmpjfdezOqIb
+1FRdeaUbkaPusxbLkRcq+XCaWUfecoV+ttsDygLTm3TFDb0Ikd1NA2MEQdIk3U946Nx6IoXKF4st
+nZpIL8tA0vT+kKEGKze2ZNdrzb7rwNgxi4CPymgjqqRxSCagNM1cBJq/pp2Y4VGjIULGYQFR26tD
+NQcuCtTOcGNdB5UjBB7endKl7QnfL/QyAKnlSbYTutumUg4xdGyrFZc9ppQiSKWikskfV7R4IzqN
+xMahqx2ZDroFdGtRnfo2tAvnMZUT9U0JwX8hMqYs2ZaiL6/EOFKAFUBic09Wp9XfEpbECGYO0TIJ
+HKOvS4N8eMVQZs3OnhL1pSFCnmBDEqXiK0LqykthoX501aGXb8pFYqmldUS0im4Wxn2HccDhkZXD
+mR3JqLxvoeFRbW30Odk1KfQ9BCalgOnZr434kTVlcSUty6+6qiKjsJ7ivvFbyK8wvS1iWNxsahLH
+oxMQPdMiaJ77EMLlCkMt4yCK5tGgp1shzkLgGr86TT0RSqiLvvCrOAnvaNCSl10U3ImlxuNO5bBe
++Bd7JIMo0sAHu0tqKbPHjIrajUmOJ4kCU/VdrUkdC+H5IUiTl+kOtYf5DqctfMCQ5HT7aIZ4QI8q
+ie6cQUte8GXgkbdG9N1aNEvvjRkN3whWAEsb27J2q+PsI9NcOMkbqFoJcbYWSfcyU/JbnFHRDwwA
+Osc8E2sYghIWdBQHeMOIYZLq3prs2PAbW2+F15pRgsgj7Z9D1ikae9FI11qQxNAV/Vz409LVNyR3
+aacxT9FFmXpOCbqhJ3k1kIS8eCNPEECrhbDFhrD3Zjc1FP/B7YkB7RhEvHpTo+SNvaFxwnvAXuEc
+wHO0P/TcKG7rxCTcL4eXljLk6d9vk4YUaSHNEXDwruahlfR6eJWQ/vux1GXb04sKJ7p8ukP7vWeW
+72E0GfeSTAdi0yFbpFtW6+VhVaASLuQo2mMZrThfXW76K5K9zGaPxo8MmrIs16tJhALCQDNNqKCv
+WD+S2205UGtioo9U+y/mTGue2nggfrkyp8pgdW+hsBopDE0XlR8+jchuwgtNsYzmIA1F3fFEkyfd
+VVIoyIaGANXXEMvBZzINRSfdaIDNW8hmFfuSbUTEZU2pCRtBBX0/TrkWXmU9JPKaNVN2k6YXxJ73
+Sf+Nhrn+1Cojjsq0pnrtGqqZESSxQqa1WIGKJfPWvATk7HYZKgMw4NK071Ky5DheBRmYgJlLMn2c
+rCaBfagRO3kOXfQM1BosLQD7EfOnQdVf+I1kRW8sPIa6lzN5JuUDYiao6BjtVAjr+DUaKJu78lTL
+qNUGqFm6QWXczUyGm5fMRGH5c8FK48kU3CcCBkrCUUYM+BlLRRpmm9BK+hspdnhG4zaEalwmi+ls
+FQVEHVvy2sgD5Cwi2sDuzctDBBy+dYGDpiUoSTW+s9oZQ3Jdtc53ydGn/pJfFd+ldjiBOe+kqj+m
+qO+vBWCvgh2wIIi2nNWq20ZYlHLyPg0xBRDrKu75UkSgEWkiomdQcYfR9RWooOehIKiuRfeiErek
+tiRdlsK+VroZ7lmaR0AKARGCdZaU4XZGoBNuEOwo9yEDSdmMY0r01RQ+OtjA0XuUGh9SqGX2ZtWF
+pflTtcT3MzEY9yhGsutZr7UT0dj1lgE7bAmmlWw/r2KeDxlEewyS3PIO88rJltjxuzkRAJMXwem7
+Ldsh6z2kkQQkhiVDpQ5JW/VnJQ5f0rodlo0ppPRAj20AOV6BBwgKvR/pEdZYMbyU7pzhgj8jpqdM
+6y5DoiUD6y6TmZ3SHBeR4dqZJZ6ElfHMRMnJMLOYfIqHyNa46o08mYKlZeS57D60Z8LziEbtSSSe
+5opRR1IF915W7ePQzuNHVdvj3Uz3zPZqEJlgKzNae17EqL9MbZG/6L2cvRNDDxtdMqHByaYgONxs
+UEx5o+zQBRyXPhl+USP40zmGq0bKNDV6LIZQFD4d4IsGRFQRW0/E385+o7EZmsws+8WL/OkYs77I
+am0xeCkOTJ/rLVqiI5ng6cMj0Am0RjMOGvoE5Awi4WF9PjP9u4P0QwdpdbdTof7n7LLbDxEl9ceP
+7aPff+b39pFmfllvCe47qADnk/nf2kea/UXV1xaRg5cL4d0P7SMQZazWDgwT2zGBO5Ha8vf+kaJ8
+obGlqpzfVlufLf9/+GWcR3lbKz1KXRFjiDJ/Ps0PKVrXZhqIPMoKpMIie6ZX+/zDNfkHJeg/Df5P
+r/Gp6K93DsmquJU58ODdjGYisBD1hL8Y/Yqxju+fz7yYyBTT4mNYVECMT2drjJoUC5Dts9rmpeKz
++a8QKZql9F5WdvHSC54nBGZE4lm3EnOV0oyt2OaT2gEhjWKy4sIYnPquGwoOhumsxhj5zH55AgA4
+p64h8uy7A+R2vsFe28zBZCryzVgOmo1DqsktMn3ISon2EfrKxSfxrWouxwzxE7hFsMzsN0hhV7ZS
+YteAW+xG5qiIwPPRIkYsdZFpFMaWOkrrEF0kx43LeyF0Gf9V03shh5bMhboEtlLEhsY2nABOojJM
+KyXzUVvPk1Cy9LcaPQj2D6us0X1lnXGHQrLmUCs4SAM8s0hwG7h2IdrnRiGrKLVQUVmoCsQoklMq
+c7ZZnwR14xWW0gsPBaL0WHBpF4yACzgsBDLlQngFGfEklxZIeOJsfc73Eskjbl+hgvUdZ1zm/ZCk
+41PljGxpGshht3IZpXvVmLrcTZzFOcItMxtvJGCFXYewi/1QZ53sFhzMH5S6Rhy8GDan0HJoh8Kf
+YXN/M0mQMDVnfmRzhQqLzArO2FP1DUFod6fMNgpyq5En8pmkJd+iPI5hxZSmIKJ7Bm8TgKFTSxcQ
+s83W2pLiK4MXz71xqPJ7fe5G9HcyPOSlmA2wdPM8XrHLj8ZLzW4LA7dA0scbbNXZQ4K5oPLi2ooe
+ujlRIgpUoof6Xeja44TyLXPR7hFAj2r9IdSQgvrALdXRxyZaXZIDTTQLspXloHWh9FiTrcV4nVry
+IxAjOCjpB6KL26LLUzA/+XLSx4U6hBgBm5JFVBixB+SVoHhNmZXcay3NuW2JLfgW9aiaPYUzFzkj
+/aB/Z9sTkpZQKwhVoa6QmkZJPrLRILYYLdsegU3XFV18iUE+If6jQpeniM4+jYbdIuJVEhDClgqQ
+SkJxrV+EaMDIUVg6O6XmIvVvwAHj323//362/PhswerIYvvPny3/Rc7Gz2BMIG7rj/wBxoRjaWGb
+dQyKsSiE1lLiH2BMnS+t/t0VvSUbtkF/+ndlgv5FNzA64WlQTLYK6kpy+kOZoHzBV3EGda0OYzCT
+6r+iTFi3NH9fjXnarU8vztcI6HnAQaD4+cmy+g1SFXUCcZ59h2sHDU1GcjAuvQBRFE8ctSyV2ec0
+sUZ5Ufgaftuh/FPUgvLzfmh9B1jzUGCsVkcecZ83XbVkhX3W6RNgAo5LCMabMdzNmZBeNErwT7HB
+Vt9PiJN4MgiHT1FFtRHHeI7KVJK0kYhTxEjyVrAMl/s0rYZ2zRwIX3+4q798Op7fJcVgXHwWQcNk
+23zaGspJmQm0upPbSHJ502G+uyPpJ93+9atgC/7pfkBDwbRHPwIoJZsaAAfr1fqhGxclUZsNEVLR
+qKUA7VpnsX3VWuZb2um226oTJ2L9rMm3Q7u+1ZHRXXerZN+226zBfrAq+VNiJedAaiVzxbphP7iu
+4ReMHqBfXADRBIXzUirpDHwNaX/ox8SOJvVWr8iBCUIUrGg2Zyft95FSaVgL6FY0BzMd5OWBpW1R
+N0pvVo+wJzElYGSjQqNnsQbmV6CGjCAEkR1/jjysZMRyJ54d5BvaqdSUF5PTScNGJNlCSH3LGXFj
+NwQrbOQpyx0fjXItyPZRSZ7RtZKvkkFSjKj09cX2CDzKs6/D2XLR2qUF8qFbJhl/tUJOSHtobZzH
+D2WZTxY4ZiAzHpuDcGfquIEf41YnAo3ElW7yTbT7yW61mZVPdS/Vyz7KUkFFrdHxsiUtB0AErfi3
+vDqv42orUZoVHiT9MNm3ei/ZPA677MiArTF+1fYw8Vy2LPYqnTwK9hSt+kSlEVm7hJ85clNsTBhj
+bB7uvoGV5MlZirgL0twhnTsZ51k9RkZFfEPbFovqCWsxrxq08o/JlJH9iua4I3RuiWxyBeeuZWqm
+HRbP0Binzp2EIw9URAel3ahilMVDyfbH2QPwVlMwz/DovUZP5fohMi25u+onyJlu2gn9zuxErgfI
+NyVnZy2DbO7J8LCN/RgWE7Xt3qznl2Ipu+KO0V+Pfmnb9n0tNLXatyGZWR4uUK0PcG8270an1QfE
+yPCZeXLh/bHtATUewcFOc0wkwnZc+Nk9IdQkro/UEQbCSjJ6I8nXwmpN4eL7T3pXTRV2U5lVYhOs
+lApjSDoQ7sHoSdHO6rpBLGKoyPDvM7SED1Ok6MVDOErFe1TWKaHhyOpRIw6tfm8m7UywTqgQ8tfD
+71AvCSIiyLrtF/smVKr4KUWc9iYXjSz2U1yzJTXLcdrJ2hJLV2NjsvmUiMh4Yr8yjG5LXNVzi6X3
+JkcG/G4mRlfsajJKT/U4micKdlHnJfYgCBFSBNkVSmseZNJ4pltUYTNTos3Cets7mSNvqdlUDQGP
+oT55WkVpYrcgGeeWsoMh3dAS34d5Ic9LUGD2VwOA7MY1BC+6Mzp4LTZOFbJ9XZWuFMh665Zzovej
+kEIKUpYHklt3aqMHddyOuzRl70AlXCF51qbqv9HZ4m27LoKFV8N1kL16msm1RjjqLN7QZRVFfF3t
+tyOf5lnLDZTsTTgvrWdkAzeQ0g68y0FaSFCfBdLTPS4Dejb6YFNWgIHsRHAxp3Hwk1lqp0OEb3Mm
+Ore0dlkB0B0Q42grZNgYTsguhpdCQ6qCCi9R7eqeUIjN9LVJZQhS/I9JrF3UR3jvqPdx+Lb3eB2i
+eyOawu8xPKQT+6CCQjWAv2XjaJ12b1XGU07K/GsmCzIwk9wk8tEy5sqPzsYMCrMKVuKzYcOqp+QK
+IHVq+RjRl3Eb/m7vaKHzj0ojGk+cLSDj6gZJUFTrZFfgESENDbtI3mG9JUN7tZH0Z0tJGxmcEjrE
+sNEmO9tO4rMFhdar9UA/CGOKlRTigmg57CrO2brCAwwbi3G2tBgwbt8g03fvbBKxvEjxlB201Qcj
+DUvybJ/NMdPZJzOM4xthqCc8cA0pG7+ZaXKie4UjFf4yWaTFOHXzWMkycM3VfwO8TXtW87c6jMYb
+tvHxmyXIWB5hG2x7BeuOs5p4ZkH1123O3p5SrqQHdTX8ZEMX4/05+4ASzEbP42oOclBXF666Wob6
+s3soC3vEv9pqKirnOKeCl0bzt7hoL82z9SgSpnKLdDt+7RwBTV9Lk3sMm1iV7KQnothe1OqpTtSI
+EPDV0tQxOVU0t6vTaf7N9XR2QNGTxQ1lrsYo8+yRojzF6CVUXRBBboms8OvYGdEhr/aqJUlwWpVn
+15WWaOVt9psXa7VlRWeHVk534AH3Kb6t/uzhkpzVz8Un1a9HR6vfaWDg95pW6xdncVxg5tkRppzd
+YTl2cWypq2msOvvHyrOXrFhtZdPZYdZLmM0ymgCGR5WXjq81cKuxkq3etOXsU9NWyxoH38gkpX1g
+UnMqwNVWR2pbwx9a3W5iicVHX8icHY3VDtfpco1xdTXJlWmSfu3l1NGC6OyiI7t3eDRtsnvc9Oyz
+k0yNCM4ijaNTeHbiOWdX3nx26JFW1XAwOjv3qnxKT/PZzzfLjoN+e3X5nXc6/z48fDo8aD9sAP8s
+bU6+9f/73z/VpTg88CN/HB7kL6iZTZmyD/Lm37TLf8iaAe4DRbCgSthnwTMb998PD5L6xWJLjbsA
+uTMoVIW96t8OD2ie4Z0bzooT5ivOv1SWoiP+83ZVdxSQMEibFQvqBPzbT6KqthaSQ9uYAk4eJ7h+
+dXK2F2qolV+rnbz7bS+YTYZ+XzhsZtxQrwGXGplVwY6YQ/O+0/RWcVMsc9Cu7EbKN1LWh9eWaRgY
+UqUxeg/BoORuEUal4uUYQ/UNYb3qh1Sa1OQTztAEJnLOlbxZM9qTYodm5A8lDRTayOiPt8myqiVG
+9q3fS3I8P3qlX+4EuaQJZupipgpjG/FNrcrwDiV77noX2fBS7fDIUWhQU7trdj3pFoSjqzbmqdmS
+XxUjTSxPqiv9qlA7hY0Mu+bMtWRDajFapvob/VjnvbOsmn6VXbFPXlrJuaN/1S13smMK9jh5pNq7
+fsHHDJkvKp+KpNRnl4B1Mz/Eg6ViniUS2wgKoIbzharmLI9RV2O1leNscWnSEAPUGbH5IS1j/DKY
+dhcGk2Kz7Rx74pc8JSuSzkf+IB5nu+7DQJNEw7JCh0r3YmRI95oVll+1uerz3WiYi44psKaN2o7q
+dNN1o1D8kmW9oMmT2qpHtzb7SDstvTVGcB2eLbVNTzVCsvADRxl7/Mox40cxDhDZWjulLxTqcZT6
+JeM054GPsZMu+GBcY9AaKHyNYfeeFyleVLyJGQwHYknv4kSXJa9XInaDwDZUxRWGRIpl0RjadWoS
+3+klNL0ZLmamkaI5NdE7GgNaYF2RzKGflAPePkQ04qnVmqG+NPF1xDviExux1SWdFJFclpTSzR3N
+uGFHRJlPa8y09wykJleClM7oChpn2m45YfWr0MOKdlGEM1HV6/xNhmnxPspENHnT2l5xBhJafWlt
+uqSSTf9FtFXee5JCW8Ygow/TTzoYcKHXxo1SteCZbWF+TGZe0vc/93iKtd3DfrMmRVhhP7k2gxqw
+yYTc0iAyz70iTPfZ2wLUjIBDsorp/rRPyHjoL5HbYykbvJvK/Yz8J9yEGZFd47kvhYcvv6RySreq
+ylT7uh2pXN6wubHUHeOA3pZ97nNZ555XrHKL3D5x6IUVMq45Vz73yOJzv6w6984KqujlCnTFBF6i
+e7gubSgzx7IwZpVIwjbGSTWrI67wOMlJ/lOHaTckc2kdbVJcKkPLDhwsFMbUQLHR6uMYYkOV0WYP
+raj9Zg5xd51oIusDqBjFqUJFQjGNlve1rnfTuIuSbsRulqhjtsPFC4lAEouZe3perxWKaCJ8fLGb
+atzkRajMblOWox8lcdduswmHK+qAKUbl1NnPI3FTft6O47MsMrEcYQ3Ig9cvIjtNQtGrXcNEYX0o
+jJp0ZUkmuylNaUDlhS4/rJzb3DOLahguRCSGwccYpX0zJQWxE6zoce9QfXXcpK20O07aYNkq8oO+
+zsQCZr7V59wSWRk5b+omoTe+RUTipaH2MB6myW5gajVO80hfcak8DtR9ukGdldNvawzyvEiFo/ls
+IGD4biNhQjTWRF3mxlOk6wSiteEjyqsBdGxjsc6lpE+0bi+stg8w7y7Achq0b6cM2UK2r4nerHaA
+bYyjbLXNQsjnGrhRmXb/IGVs4YO5y6KjTjSnEVSiLI56kudpUCLeuu/qhIOBoLAwbU2OnOSSGhQn
+5wGthkTxWeV0mC9PaT5oL7nIi9kPkzB/ixEmjAEiKwrooo7ny5i6rLbR20Z5rmgfUHdysvZB13uL
+qTvU6HxiFfO+m1aT+jznUXjRErd2J0dSepuusFPUbuAn2BYhY/BKqS8uAKbEvbeA15Jco7SmU0SE
+nOz1qdQftcGu66dEyuNjZY9R7KYyydLbVk/ZBQ1p4ryYKQ+EYHEEvld2nDAB9Fhrd11aNxb0jnG6
+NQYmjZcJYA5g0C2CzlVllm8ot4FMwYPcitseQsuWUIuR3nJpMjWQZdKSAMbZvFcW3kryJEYfRkdc
+fUWbp2dBonGG8VUjI8JgLW/h8yv65EjqWtjv1X7BJco77566gRME88JiW8xRHjlgWip3sh3mXy2T
+GElfDikjucoirGtZmQ5Sucx8kGUWMTS6AhqVMRTrCdyKoQe06CGfEAvaj6NSZMiwyhXNReagA+KC
+7v3XiKBZEeiK6A9D0VPpqOJ12QZ91ui4c2foLkRDT3aA2x//8LBwwnAHg+XDLcrKeGb8O/khHcP2
+hOMZVQMg+JTndBLOiBSmmaBZCjOlZzRqKbZK06boRfSW+jj0Bg5huFFGwqohafgwfwoB/2NiAsHt
+Mj6cnBJhUJsTKj/aAqQxUlaav0mIy57ht8L5SFN2/hAmSG/fqH1eEUIWj/GxjXokZw0F2keNmGNc
+9KbBnZrnGLuyaocNntqaVgATFziBaifYa63I0BS37kcrwzY9kshNV0ZR/CgsCNcW1Bo6z24Gwqjh
+mix3FWR6lXjJTrLdpZHqB26jCU6FsshjKonO9oXIEofUG9n80K0W36OFsAGVygtLf2P7hZ70bwLn
+usWikrd3RNSC029UjdZPtDij7FkzwYJ+1qvNBQGRKbGOqESiTe7gOfYSJ3TuFJyPEwmJBjZnsBCy
+7CGUXK6cWq86jthS88IzHLQR+g37lFTV2ATZsm6E+gjdsA8KL+EZDl/kcRl11hrKZnMfWOVgdLgg
+Bc+2OZ5mya2wmwJZqrKZpLYpl56rmeqXV60ALVdayrbxqzFqCwReNYmCDlxVxx+MIm19aJlZ5Bpt
+DQkpFXEPnsdc6zaZbKRfZScSmwjhEcD2qRHThvnSjgHvPG3c1BhYZIY6ITVSj0PlrQ2hLfGIzdCc
+6H2zSmOsrnuMY6lF3ImWIC/NjgBfo5fvWoWGm2eiQap9IjDgJKv5XPJxMnSmfd91FyBCqUQZRiTv
+JbvvToWCAMWf0la+iWIw7sAeILf4QmkyUs/0liWSYKjxVKNdkF2F5F77whS106GfrfJ6w/aM/ZSN
+XvXVWCw2pqsKQoUhZWJgjdVq6cATKcOJ3MFR8mr2tZFvhSTRUlLDxTs3Uk84sUxcJlkDyCjVcNId
+T1FHxLSws9XjAnGKcMBkqA1viZJmCmSzNK8o05SXoLdH4pWnOj3Qe121wQ7hnASFKvnLIrHYsrOa
+VwkTNgYKlTltp7pgRUL7Ecmvs2QphdfPIrqNBwIW0AmJ+qalQhUFmYQszIUSkRmepucLjNU5VTbw
+AqhWOYMdWRc2wo9LOc/zxGubSt0S2K4B4MqsFDiLalAg6yp7IfFaW4dLQv32TWNJ+VYQaaFvNUXu
+JdzZaxwlVZySYRIW2XtZpAZ4TUhIFlizvjl2CrulnVg4dLtiiI3vYchOFKd/WVsBaHDW8XiZBgR6
+da1vpx6sOzHGhoWWSmm7ZGWysDlOY1jkWdSAw5FMh1qqGEa0wvLEEhWrjf0xJF0vb0iTNQqvm1T5
+WUYf3HlVFtlQh+wufontLuo2BtvdfKNIYUFtMO9qdZsMTQRtIOnnjne80PewRNG+xm2ufEdlxB7f
+nEJdcJaQozBAkKanPrSkjsJpCBiKhuXQEDExOvUHsIJkhDNGmdbPhqYg6sbuaeBrddm/Whl6aL+X
+5Kz1KkMpXg2haZByIL7dI5iNFn7TaKGdlgXjL9YLjXfSU1w8KAw94ZEOkEcQf5ryQLsUJ3uaS/aV
+mY9sUFhEJkYCoEwmFzE4/FqWHLFVo84y3aqyqTOkINN4IiaNqZ3oFszczKGTNkbYl1u9VeUtW80u
+/U1R/++qwg9VBUeDw7v2hf55U/KmKt//93/K5NuPpYW//dzvxQXD+WLRpiJvSkWJxB8RhPxeXDDN
+L9QIqCv8IYfhS38UF6wvoNepq1I/AN5PNhZdy79VF7QvfG2tPCCMIWcPWc5//sdPncD2099/9EQi
+u/pUXkA6Q7HCJGYJLzbtwc/4TrsboDRoJHBRTvuw67Tam0nd78dEozXvDH390sFyO0aZc6FD6QiK
+AUqiAacV7b2jPJdN3T3LbY/hpW1BCi96DMyvjI3D0sya8JZBmze1tHfyqdgWZp8d4cVx6HckTm0j
+ISw7x0xYFftR0x4Sla0/nTbnG88T7EHkqT23SVpvrAi0dSKaeWsLK3xK+SREaEayscYTdw81skEq
+DUbJQivLynGYSvtFmA3ZYqk17zQtt7eUC0sojzoJnES7jF/DpmzJr4nG9IWa+riR2Aw/JqY6kthq
+syPhs2vanUCfMXuE/hKNGyoO4n/FuupLw/AXx85ea8iRgJXk8Ulr7PEKKhzrGzAgNOkclHV/Xg5E
+FqKJiLPoRknTPdpW3TM6u3htCg4Puxxc4Cvn4KIP0CRYT4PaNyOJCS0CdGKIhwj53thzVWJjjVbt
+nDDc0i7WjFc56aL3xYzMK6fhGBFMDjuooI/a9rHvi+q5lKj/5KlZbJSJJxkpTWilC5BNCSvJqZFt
+quR4WDwpJ3yqSu2MiF86GYDlxNGshnATq1S+XHZQ8feMns17i/LmgUezjCQa+A0VhNRLRZhe83hE
+12JJ7a4wE8svKnpPXWzGh8xqru26vCXD+zBRaNdIcRZJ3m7LUna2kK10Vx/tJmhQ7jwisD5I1oQ0
+loeLg0fBKzl/elFZmZ7Rc1nryUBtM5YnI+OL0qh5Qzrgt7EyQEGMLrdBlb0R+iOwE0+R2m/2WF+o
+S3EI21Y5aY3yJigQbXM9vZl46mxBqCnbcVrCYG7BMNa4RAJKseAOTSvnF1iZX64kxMEY2acVSAm3
+Vf5/1J3JcttYloZfxdF7OICLedEV0SQBTqJmWZI3CMpSYp5nvE1Fr+sp8sXqI5VyWU7bkZlyVFdz
+k2mRBC8u7nTO+Qdib5g5vrJEJhi9jmCoQmJx1nTiBEsBpBoAxgkR3dkOFF2crEZATy/1XSYVaMiE
+tn1LZ8R3sbDTCwSapHVAVdZJ1A6hV8wmSbbUHTF8qEUWI6DDODbAUeBO7n0Az5FHyF9xbFdzMzuP
+tM5bF74/3Ii0NJc6JYVTP0nsD0BXMvDHft2dGnkoNiAfpQ9TNjanthKRXInGj0baoPViQ/lx/LZW
+72Cy6S7WCOIMbRtvhxBYUCJzY9Vrm9rtveZ1TpeFi6BRkAk5WBJQHjXMC2Rkx22RVR5nqRQR8awb
+zoQmFXciK69HQ4jzxoJ+UszTSKul62qIslFz5caPtl1kqfPn2jcpTwQjR0XdhMON1Hi3UlzX9/lQ
+Wo6s4ypc+0G0pXiLBbGBSrkfevgQkzpzYWQdZuThc3llLeugJvmFGb3lAN5Fms47mgm3MClkDhdu
+jMzcRV0eDIyRirrTRj7Yi/xQN7db+yQusEpnwSjU+9iKs0XNWcI5ZttqaA5u31jJ0q/UZCn7FXwk
+qmwzP1b6J3QJ+fDBtjmPI3nVk4NBmezwZYJEGEWkIag6AkEvTiMMFTZmH2KknA4JKvrAVL0TwjQJ
+YzMptrJZnxBugEKWfgGFGLphZNY3SEI1qwaERi3Ix4xlvZrszNsMkdrdMEylCzk121Vc9yn5kMje
+ki0l89b35ZmZiU6e23j1IVxVNTiVTwl8gMiSTlovJuo2EHS9qsgruyUCv+ASx7g8mbogXEawzVad
+WZvOUOrNQg87il4QW87MSHuIgPHN48afltYUpI9S0Ogfk1BDvrL2IYpQ+yvAEZpFvajDoj/DLpNU
+YlYa8wyyEGf4op729QB3gtLyKgzG6FzpFNOV4Pu4cp5ki74ck8s4TS3yg3iFP/d93hz+pvOQIgpK
++uGOCqcAMHJLmTNax1IX1y5HXv/RqjQwDr6us2SKaRSJ4yUHekINgujUFxpyVyhrWh7F6DJYx1PP
+NeskyBagRHnIbWo5uRaA9kZsbrjWyAlR70anjNB98M7QQBdUCXuG0CRNq7qqMVruR+0GlMbBdT3D
+HdscNO0GZcFiM5AWWWVdgs91oBcIb3FFVU/LDe7pwWWfjIiOTQVkH9NEx0uuRjgCWt95Z4gYYZhd
+94wmvyyDWxTeqrteTtt0+TwjYpxGAXiMwPZjlVuSpyxbqGoor+TIK+a+2XL7z03kKFI4HDGquzjH
+rDuiLvjoI22GuBU5McevKA3LCUAG0C8H3Hmdy9pNC8C/WKRha+3zqM02dYDmmBwyUxn4AuGwHpKO
+6h5nQl/Uw0Nfmioqm3ayjAVK58AQxuACnyLawjJ1baEoOPe9sPOWsWoXgLED/ph0XC9G5Z1K5fFb
+csl7eemVIZM+Kvl/s5O2eIRzn5Skr2Oj4RsFSExuV8FboMnmPJvsKkvDfG60uXzfIZe37AskThcC
+zwEnaFDBc0SHjq8LXDGb92WqAgKRSZzNuoyCq1shcLyApdoXqxp40DYV5DznWqsCaQA9uzSz/ECG
+yQuTTTnsXaSwrHMjUBRlFqSB5AzVUAY4prbZVu1txCVViDu7woPLp4cN0BSiCaAiklevCsTmlZkJ
+KnaeTrH8cSJa2YxolzqkAtuNPKmDg914hyQoytYXuUZohIiondzpxYSUNipPOVk4Oe/vDFwiPpgB
+kXQ1hpJMlreXynUymea6UqXwrI3k3HCKUm3ua2IYjSC4GTYQpidzLvdRtqKOYLaXdk+ld5n2Eogr
+0pgLn48tlIYEHhw11X4y4aw9QMiwN63Igzk5zfsBd87zsOtwpa899KcTHs1tOXUEeVFkXvaBkKP5
+NAXBEvc8f+0x6zhShbK6bVLF2hVpZEJ1jISiO5baejPTsrw1kWohISJnRSctzFFUykohrbNGUw85
+pEpfpm2bfOhGW5kLPWh3Sl1YGz/wvSUAtqJZaEWL1mOeSPUCBkLuEJmB20hafUU0NtwoYLwfpsiv
+ZYZuZW8sM6To0cSt3c3gDQbCJZ1db5S+Ql3WS4YrrxXFh05u2YYzMXCIhX0yj3yWn4Vo02BeVJgv
+ijGTNm1dwVoiWeyfTvrEqW/Spg3AKeucMTfuxgEbeyUHAg+0IzVhvGLhhMZ0LedwbkL5Qwv+GcJ1
+2/abjJKH5qAH7l1oEKLXftf5ywhjIZI3aYJ+oDba5aOhDcXO7NAQNlu1qNkzlGinZOilcyhLOenK
+GidnJx9V6YZ/+p9sK1HvCGOreqGSb3y0DKwrydvo1i2wMOOa4WnsSjMnlwVRbFlQLkQmMio3vayM
+Vy1ijQdFyg699T4obj3wvB8kMGePh+jCIjeuGjCcEoWtJCdfgDunFzwgA0j4SiGo1BZalRTXhQow
+Y0NpStrheY1Ef6jU9YM3ZPHJmCgm/DWJp9bW+UOn8iQnMDO7ZADP5Zb+VKoPneZJm4bVbK5OlVhD
+7DbdaTBsF6HdfEcu13wyjzqkwOpnNiYLmynrO6LpFgq3Jlv2padr+qoefHyaqVWwZmrRRtUszpiW
+zH6Q9iKaiQIp5lnfm/I5nMCULCtsavTnye5qvZGcmoCHhcGX1TA80RN/33GtEwaXsbJjryEib+wl
+2oYg9abYyE9IajRzn62enJHqL3sUXec4O4Vb9JuquS4j1utxGoDuaPXbWpGQpFSa/kIRAtq33Fvr
+tLzVI7u9o+sr9tA82aWGSZZ58iWck0ExOa2VmJuwyZQVKbAHIaX+RdGQehyULl0DI0GVE3nCix7X
+rXIGYrpZsIkVJ15ALgX1194JYHrh85TVrp56w9WEOKoTJ96whWWQ3tTYki2UUm4ve9iilGtYrzkS
+kwnNbW/akLGVL7zG6k4ooY4IqPsP/QFHCJ/VAnTqcVroJjU5DQOt4oQrQPd5HpXPmLARNFLlywtO
+0gNQQ4KIRoweO5SAGxz30iqZpMyR5WhYlaKvz/Q+BHhjZtNjWVVipdh+v9FBabmW0UqckGxpF4Iq
++eUQ2AUkxoecCVL0t1j5IExp1GujgJ2dipIbKNTR3wP2ojsH1qzKk+0z3bMUdeaBolqjh9ttZUT2
+VywIjUp9vFW33WSHxVIYLNXb3NYQVK/NBPygIIPf9VlaLJtaCh4gX4ZbTURJSxABzoyEUc+WLulm
+uKCy0z1NzRSc6ZiSZPPYi+LjSNSGDWuJuiLxrl3aSLx+hN4OUNRUC3uh4GRwLVkyxMQK53ZU4FOL
+9FZjW+u41WB0Z0mmf6gbU3uqCqjsaxjk7bIQau4M8DY3iAXkaBFGnTa4FVYQ4wwDB/mptQOU1lmd
+xxxPJyGpM7O0ho/kVuN9bvYdi1xKB1UoHxxMdaXuSsnzYdeVuthMYS7ddDlJgZa62aVGoYNjYQog
+ZhEPkXfaNV55igiB7wiKd0s5LrvACYVXJw4wOBVR794bPo5B19/7SCdfkYGPcEqUvStboXKKu7qn
+fghAlcGVG2R9MVZJB0TVtilY+8jju6ldtieSCC0HTxqlmqsJLZgZXaie10nbWBwmx/yjF+tIN1JZ
+8Mli+NEFWvfQRyPFatGZxnHupLcm67obPe+jeqDGJ7FcL4RiFmcILmJqVSZXyPgq2ywAkhTaPYU/
+3WqpD6qloAiOArxHsYHquT344Oz0przuB3gvYRV0SHOSn3SDFoFIyvjeuKoSGeBVTLL0DHHW4SKS
+IMrNpHjwr/LAi6+9sekeB9blFCmDIUI5drT9kM1DUnNWiDi7YyGhIRO7CWUYMB9u7uuJBdAzTzuC
+0Xh4gGKTrCKzJXkwTLa8NqZkw2wtAkeyc1R9EUAeqkXZFvIjh+xqpZVF6Rac4ImcdAEztPaH5sKv
+PawLesUTHygQBbuuMyWcW4dgo9iFvApxbZBbnRJRUgzZknSuhvh5rWy0WEzFjHlVnQ+KLpZF1fjn
+By5gCKE/05iBevsQJkJfc+RWBfQksFkLyerLU83MB9dQw+qhlRr/ZIo86ynIgxgF87HWz0w5Ye/s
+qlA5JeqqhsXQWd0Ee9kIkYKI0Dedo4QQbodetZfwuDEtHYKFoXu4vo2FvaUIIShkoEl96Vdy2biF
+hjTArCJwSaOod+Igly5zjbqgDLsYC4Y43JJUGmd9qi6a1L9m/bpoJOQNJAPx8ZCEhBFL6mKMEJcR
+oeE/pnVyM4pxESixvJOzplzECF/sWq1S7/vQE8s00WK3Re91FpT6ZV8Ha6koHRtcyaZjRbfZeCQR
+XEzy6KbStMiq8FM/KDs/D86Im6mCxp5jIj+SVvHaCylze4Z2G+TlcpKptQDZPiSoXaSw7wvP3FZF
+SamFGQt5JrLmWTCOO1ED3ys0EhN4jMwSg6KGiKdlrOMkGGFeNy0qIB4VQqfuQaDgVG/y0bEzW1sn
+WhPeQk8qPyqFEG5vNfWuRpiGso0P3tlTK201SUbkzw2lk3+x8Vo9ZdSySmmAxrvAn24EteVNK2UN
+xnWB2V5UapddWVRZnDKTgdlNCFfn2nQ9dcrWTGuKX1lHGKbIsjMlvYZZmXc3QTmCfyANoA1aE7jL
+FAkXzY14N9QT59bMpESegiav0B5eBKopiOqBDzfyAPaWM8wm7HBBsoFfNMugAm0s5Ur7SP42P1VR
+ElgOQV8tsYq13Bjc+JxwUN0iij/uCtWvT4EfdNQxrc68qjqj3caBOXHSHMxPZhJ0bl0KZT5w5pwb
+KGZvqMglS1jHoWtrk/EgKa0P9DpPAM4InfqcHG2qAItdCVs5zr+xcatqgXDGrpvWSRYYrjYKGFAp
+9hkXtR4pp1ohtY6C96OT9ra1GkejuZG8QXVbHFQ+pUPa7NJytM8g88VA1mNKnUR3T/Kggtqo477e
+JZDenUbrow22PfpJr0TUGyDnDcskwD9GVhAhQZSWcHkcK0SswQM4UdBoiyqS43sKUImLX6N/nkmD
+tSMkSRwl9CEN5L33aVAb6ZyUp+rkvbAvIuQuzmMSt67BKXWVeJKBHAzi7DOjiTdeqN3nmQKzS2rB
+YA198BT5UL8BgY2XIM0YSEkhkV8NO3VfWvTcoBbeOu9DqP2DXF2h6CDB7YtpUN5UFPnHYmcVlM4D
+RLcXLevZiRRI/QDbph0XUIe0hefB18plGzUXIRXM/akXAJO1cUIEKJryBQXeYh5lBSLiQZApJOjG
+yaX+Fp+YcemzoCjdQ+sJJM+nsHAoak8PEWXWdQRyaWcbnbxC00baooUTOMLIZIeCWL8dJ79fk2au
+0X7h9Jqq2rRqAKV8RMg5ZxmrssvpkHRui3FwSjmqrm3QEm5u+UtC9Ggb9CjPkKXCOibxW8YuzBXO
+n53iTFJLj2D3YjYIT2OQt4HmSHIxyxvXrwbzZqwmOM9w3dws0fyTIT1419pBjNsPO+FapHjpzBpf
+9W+HMbKuDEnqAIu1Ye7mYIbP/CIITyOkffsZYF+xxgIpr/4fI1V/K4QdgKRO1mCic9E+VePlU90m
+zefSyuHdc+hYzTWky7/yoZcazbcv9Fsp6nosEOfdP4JKXIR1w1LffFltOrDgqOa8qlEdG3Vs8Y+u
+kexpc/vIxSXFPij0GpqsaPLxBSc5yTMgXs/va+p7MHqI+1oIuR1ez2jbL3rpe/3w41t87tAff+bV
+LXzK26w5PAg/zLNX3fAH++CrC3zZB2CAj69DcezLm9fV9+gU8DoqFPPf55/699/8d8eAwJD6a2L+
+nx4DQn2v43+IkbZ1vFv56zFgvMd/jgoh5Y/jC7Qzo+4/qRsOFda3TgVVfi8j5keXfjUKoIMqYMZ5
+87l7/gNHAQfXt96+MN/DikRnDzm+59frbtCs9zpwdiFj/Xt8/V+tBN+fDHB5n4fmc0H88+L6ZxZE
+Id7jfs5EUMS3u0F9jzM6PPLnleFPLYh/YMZ83mLmYHcfj5tL+ARi7/d70Pc+8LKm/v7939bT9eN/
+/5f6L0bz8XOHreb5p5+O+9nh33971dHH6f7Fmy/T/8uv/3Z/v//lb7bp5Y+r8KnaV5+C8Xi342+t
+fFam/59P1dOXiz0CIi///Obu+Hkz/OFFk72f7+uXCx36gwCCkfOv2/vdtvvHLpzupzz76sraQRH6
+rVee7YPXUBMAJcy/t17WfXqk75N33zpeoNrFmvLWX4CM+Os/qrDJ313tiepeLvjc54hyvvzhrz/N
+ZR7++vfXDxNZIXaDtzZ9t6/2WfDr/75qNACan9Ho3Z4eofQBJubdI33TJi/tPfQMa6wNzeftN/D5
+R14u9nx1tBBe/vDX+/18X71WZRC6clRl+LyA/LVJxHX3v/7j4RWwSujiZ8zPH/tcvLHdlyGP8und
+Zp89hdXrMfO8L731cR5+YMmQ5EcYMqd51bxaGgVnIEBkP/dXvh6Yz+est/7GYSnYv5sTRFVh9vpB
+o+PxE9aEK2btu/M9OPOXDjkO/OfD8ptb/32tqzcOoev8Ez0TZq9WM1XV1Z+wmn1fReWNjd7xCOt3
+S/aR8HW7n8PTt/b2+XcJnG9s92VOi9NXo+8QUf+MKfRjbOgb231YH7PXK6+tajLS4C9j/a+v6fOn
+rxd1ZNHUo4D6j5/jt05+nyPE358HX6L/b33t9Vn38IlPCc362z8BAAD//w==</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -5771,2096 +5782,2060 @@
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HvZct24luWvOPzcdAIEQAA3bt4HkEezZFuy5eGFIUtKgAM4AARJ8Hf6U/rHeh87nWUd+9qVFR0d
-UXUiHLaEQ2LY09prwf+8X/9x3z7euWerbTv/j/v19+dmmoZ//PabvzeP9s6/sNW9633/x/Tivre/
-9X/8Ud0//vbg7paq07+lCNPf7s2dmx7X5//6J7xNP/YX/f3dVPXd6/Do4vWjD+3kfzL2w6Fn933o
-pv3jGt70+3Pl7rbTi+fP7h5s1RWVn1x1P+Hfn1+fPX/22E3VFN/E4fH350/Gnz/77fDl3y3kWQtr
-ncIDPJuk6QuJhEAIp/LL5/mztu/013FKXmCZcSJT9OVDvk5+dWfhBddV/+zh8dnZXfdYuf7r2I8W
-9nlZdw8P7tF72NPnv79//slmvuz1B8dStc+fVb7PvxxY3u+3oq4/7/23pwb51z8PfgGncfCbb2x2
-eHS/GvrPmuzm1c9O5u+ajLxghMhM7s22/+ADk2UvslSITKA/LSq+Tv7FZDf/53/3z17dhfa/YK5v
-nz0w1X6P/wNMdXn89bR+5MR/01RYvpBYZBRSxo9NRV5IwjL4DvkyfhBdl1V3558dP7q7yv9sWT+O
-radPH5hrv8//Aea6yX92Ln/TXCl/waQUYC746/PnILLEC0axSBH7sblu7rrp7ll+N905MNzPFvZj
-gx0+f2Cy/V7/m5lsn6i/rVVPlv93axVGL8jnD0qf2oWRF1/KE8++hBGMf5n1S8bbV9Kfr+TH9vj6
-3JNVfynM/90q0PXN1yP5f5DWCHqBiGSphMryLVhg+EWKM0lg8Id22IOFY3fXAWB46J/dhAPneOLu
-X6DVD/HCwSuePAaQAXb6/9Vg/x5O/IW8CkgJu8+Q7RtE8fPRr1Dk4NEn0fRk51/te/rw+/OUCwy2
-+QsK7l/yJCJ+DNu+efTxzk8ADyl6ITOUplxmGUGCSfr82fL4ZYi+EEKSFBFOGGGYZc+fdb2bzB5V
-ohc8Aw8BiEIzShhjz5/5PnwZIy9IxjIiOEklhlSb/YWiX/Vt1H3318H8+fOzLthXfdVN/vfnMP/w
-5Vv7xWYMSc6JgArKESIpZ7Dr4f7uGoA6fBn/rxiGueYjG3PZeLYbzbwVosw2KH5/Hc4PZoHlPpmF
-8TTjGKWYEJzuS8DTWbKpSkvT0i1PyESOMMVGWeyqwui4FT+f6nBDMBVPob5IjrngNOVPp2pFmq3p
-rLe8DKM572XXHbU9adXPZ9m/5dtj289CU0zBQoDu4fN0FopjY7nHMZ+0iS/dmvIzN7c+RzG1L+vB
-2rciTTEgvr95ipJnlEsKBZSCCzydtI+OOD/QNe+TadjN2Dk108m+xlPSnv58qhQw8OEGoZLjNEMw
-WYoP/WLYMrdJnsScd3Mn86pp/VvGtsYqFoMQFyWf+R+4Gfz7TlhilGB+uYyWD4viVeMTpbfavmrr
-WN6yqZt61cuGN2pzovfFaLP0dfQGd7vg+cAUcdUg1IDE+qVJ+dKj/MDxMATRwT4IgMcMC46pJPDn
-6ZnRPqm7ifM1XxYUSjXjLWbvDenJ9NbpRl9jMXutjGfjddMsPb3AltTVccbmtT6idTbfuWbY7rWX
-WhRj7NrLbSrXqqgHkrlfONU+Cp46FWR+8CkqRQa+yw7sm4TGVggPa17rrTnLGpKqZOnsB08qlqpl
-mMVZHNJSddW87n5u7+8DlIChEaVyH6OCAAD4Ng0k45gsES9r7ibxcdxm+3bCAb1s+hDyvz1TilKW
-ZVQQgTJxsEntmZ0qmW55t9ZZowwiZdHHehrURuPjz+f6PhcQylPIcFlKeYYRerorzdFq+2EDJ15j
-u5vc+oDwqIEe+FlU4v1bDswmIUmnWIh9m5/tV/FNCtVNHEm9hTkvE1OqdRaTqq0mqtXRnlVh63e8
-Ldtdimp6KYloH5mN+BdZD3+fkKCjhU4og+wHdWOPLL5dRNzmRffjNOeTGJJF2Q2V5ywZw9G28ebI
-llld2FJnu4AXoqo06c5og4xVC13JR2JEliPn+5NRdPbc9DoZ1VQ6djHhTgy/cPMfWGWfMxkXTEBs
-in3q+ea8LDOW9G0ZcqCQglojhfVZTk5+bpYfzcIRhqpLhKQZ33v8N7PoZU47E+s5X009qaGvcc76
-iH5x7t+nFwr1WzDMU8IowQd7aSJp+CTJklfL0F221OOiStyoFt+OhQ1refTzXZHPkfjU2yiFpMwz
-hvEeWRzED1olb+jqUN6Mg7Y5kU0zKpqN/pbErq92NfZpptK+dTwn6zS+MaEdZ0UZgfTXBCneEWPW
-sKtDZj5lvjayWMKIPmxJh0oVt3Vd8gbX4RYyQXI9rdK9S8NQwwOjDyeNDPQxhrnNlG06aY9Ku7Ve
-yYilyznN3KKggPm+KCVqXzVhrZgaOz98SPooTB7n2b+B8riaHA09ejfO7dKoVszVTYJacd31mRhz
-bqZwasuFGhX6Ml7zVoqhcGPI3qwejVNetSYGZdo6SZUNEz22m6ZE+XmehuPZLkuTI1HKoDzu5g9p
-h6RVdWy7c1QPUG2qhrNYjGMKrm1WgOk5YWJ47ybvb7vK+iqndehi4bOJ1sfL0m2XJC6+UQOBr40L
-t1GJxC5UpeWqzwOr20TVZvPhnYwRjbuMJ/WHrOtnnA8jW29lq1ladJWg123k+A86kFIX0gbkCzfJ
-7Va3brH5vLVMFzHrojvTHUU3OKnwsNsSM5b5AHgiVWlYZqy6ZZy1QpUVr5t5mTc4QR0eXEO2Wa3S
-Yl6EbcZXnamdVtIM04eRD8OkGpEEd+6yOfFHjgTTX2gdHYVUPKH6tMdD1oecUttWb/tyRIkyGSF1
-HqZuHOFhIo+TTUekOsK2WtUlJn2OSIfPpm5Dm4oDX0+nrl0yhbCLl5IuiB6VEy91Xo0soh2re0R3
-syPx3nAeUZ60Q1zy2s5NXfhmib2aV4NxvvSmew3hzd0VjjLUVpEmWUkxZzFOd7Rpsu5V3faCRlXR
-4FjOWjoup7Ib1+y8mcYyvcjcuF6UYU6WfFigoqps3rZRldbodlexxM9FrLiQOc86UeflVnUu91tZ
-v2Vo80ZtVc9lUYWp9xAWdVsrWTPzCcoXJsWKZpqCw5XdcFR6OYTdUobsXVNmEGvzOLg7N5fu09Sw
-JSo3GgjJxSz8Nni54YvgovnkVzYUs6/bmwx1+KbfxgEAMRL0AZByX6nSTT3apdiIK7FsEs60nbce
-0pnenNJYrFyRLaALLGUKv5YaXaFp6AbFvUbiKEHdAP8uHfgmXrdMFppCYKhGju2musjkq6GrybTb
-NkOyY+gHxG6bHOBmIaorT+v+vdiG+JDa2oLnuBjv7EhrrETTJEk+d062ahOiv23bCr8b07HRBcl4
-ZXdzxdo116m1dbGuzJ2taKnQVRc9OetnNMd90h87ZWIz1kXQpnlNaxmbI4Bl9WvfpyPrcrOO48Xe
-Yv1RrDRKriJrm+pM8MVWeSLJ1O30EiPgUdJMDJxR2pdDn20ih0w3aNV1iIMDt2jVqmaovEsiIW8t
-IiaogYtsytMRGwTAdaIyBwWhf7lCTMwKoGHY9UMPp6AB77W5rPjQ5H1GE6b8NjbHFNSL+7U246Lk
-SptNBQj9V66zS6+4LPnLsUmrLdctt+hEdJQvedClXF+Nlatus1qY6WjlbDNndtbDCXRvwim7LjgU
-tXHry5oISG/ZNJHtaIWGb83bdeU3wtX1eD5p12RqSmkgqnbpWBZgJep3cgvZOR0DtAe4Q/MbG7iP
-+SIWgLfcjqY9oi33uzg2XVYsibOv/KI1OLUdarez1VLeQor2a+7Xob0Mkx/uUjKBhiD6NNxEGgek
-BhrbWxxGOKUgJ6sVxcx+MrDvexRcXx4T4/v7USA2FgP0YEe1iaxUSGTtRxpXO+yMaZYpb5vZGRW7
-BgqnDGRrL6XbmFYYNBt35H1XclXzRV8FHrqww0PNrxNS4/sKh3I4ykxppYrOJQOsA3GjxhH3Wukm
-Ea902ifieJFWvhlnJ22OtpnVBQXgKRSjbKpVBlrOY2KJaxW8PrvqOcYfYrkuUMjE1MhfIN7vkYhI
-ASVITFIo55jux79BImlEvt3SyefZVumzuk+203Kd1l/M8n3zIFKW0j0QwZxBL/90lh6SpEnBgDlP
-QA1DyMvTNk3rEyAlkp2wbNFqWP18WiZ++zL1n7zMn13WF1Lhvh+iq7T5U53768d/XX6V/D6rQ//x
-+72+9x8/vZwf3RTc47PLu8E/Owrdw2fV7/CZ/cx/PQQT/7mSPQvz5IfvKKF/Q/p8ERT/zeB/khFi
-EpDWX33Bd4SQujPVX4z1Zx7o8wN/0kCEvwCGByFJMuB8oPUBH/hKA2UvGDT1jEObkkrov8BwX2kg
-oMsJAD2EkSCEU7QHe19pICyAzEWpQHu2kDHExd+hgQ77P8Q4xRmGNoYARwUN/1PvCW27SpOtiyJt
-MPm2DuLtOi1Lrmltbr45lz+d5aeM034qCR0gxymViB4Ac1ICP9CRFICidV5Bb0uL0Cb4F13ZYdDt
-N5Ry0CFgMykV/KDv3/p+dNAALIDLUl440g8XBDLBy5/vBe+j6ls0/nkaAXKigMhjgMmfnlu61LOr
-52RW08zcSb2O8WKqeLhiQbNjsybTrtYrU5NIB7U009ypOQR9ymoSc+gbyy+R+G/pjh+ZEbpACs0I
-dKJSHCSBSnTpNPVxUX1cW+Vp056viHdHVTvUl7/Y+o/mEnC4YE0ETS87aK73MLHmEewIKPNNaAaa
-9z053srmJKvYCevdx1AtHwMuTyta3nQsvF/7sojJsBun5hSgxK/6yu8acTBGhtheCgQWI4N27Kkx
-snLMGir0ukefkjzazq/NGZTp4HeiNt4Xyzh2zVFTbTa9xmsKKU2HpN91M8Xp7ufH8wP/y/aUL+R8
-TCB+Dywx4piauHcMM2XJaQMmu6CUhl/E0g9s8GSWgx2XbktDXZfQ3onUqTXr+0K7bShGU7fFf2VD
-EgI2BWYaKszTw3XOV2XXQkCFTZujVK7J0ZD2Uv0XZhFAFENjKwTODmgMqeeh3WoNTtXX9cel3/xV
-MifZ9c9nOayVe0fZZ1sB9BCwbYfsbUK4HmbbLqqpcA0N42C4igjrnaZ6ukBD1VxAzzuckbme3/79
-qUUKDgGYIs0oPdhgl0C7tFg5K6K1uVwxW+5WjZNT1lbslU3ktLM8y15liPNf5IbvPVIAbQCxATgE
-OF15kKqSRWcscXVUtaDjZd10/YmR3p/83f0ButubDgG3Qzg6IMYNGucMDdAgh3S4Rhm7m6l4U27Z
-2Vx7r5CeTjh15z+fc5/LnyZhAYeZSnBMaNa5ODjT2aBFj1MXlQRmFhoUDOj1Ug7b1J0MmFRZ7mk7
-mAKLKnA1+6YmChpIWd/+fBmHXBCkHuCXwbdAriEErpc8jRDmqJGygWWIDFZB1rKGNsKMu1YvOqeT
-G49/Pt/+fYfbpqAFYMyA9Ev3GtG3uDLiraQ6baEDlluTr8CdnAClkBTr0AwnyHZvDDQuJ0ES+Qsb
-f591BGYYyFtCKHgSPpjYbLSGPnmMqqRNkjeoT4qGenk01DH8Iusc0pr7M2UE5gJYKwGhHGQdM3TA
-tiRDVF3r6ybfStSg3ZhNMeZ26ugdrjecnawuWba/m4kAqVFQDoAYg9nxIUuZrAZh6A1TxVZJVOLE
-uBuarPlFUB7uD0on2A6st1dZ4MrRQQIXaYstGjRXoSzR9Spnn5c6nEbCZ4Xrfr2e+/gLZAQXZA4c
-Zz8p+A0IcQAbIQUeHCqeo42UtFKlC67bs0rMDvvczZA6Hm1I++Vqgvtvq+qBIFutGqd2LE8n3bXy
-TV1Gay997Wt8LYG5RYUWs+xParGY6aY102ahubdzUkTNuu6DYA2qGyWz0iYnq+bjct6na+nyvg18
-+dhNdE6RmgJ00a8ij1k95b2rtvEx8RLoAjWmfpCXsp+g53WOGHzW6IkEB2QOIuQl1ch3R951KatV
-udZjej5TIIEuUx6W7NL0PfScwVJwHbZVsMmKbBAcfSDZH6wVpssnPDG5q6c0SfNMj3AoXQ2Umppc
-ukyvdJ2M8cNggLQ5a2RFp51kbRkvaOeCviEgHVVKtlF2QMyNCVFGmCrumE7MkPtGL3dMlsA/IUo2
-rkDP2T7Yal0DEHiGxp3gYex2QMesaDfA4WSFFbrsnEq2YbsNKaQ1xcNs4Pwqnjjg16qRnGyN226Z
-a7flOF38RlWgsvokkwxIjzjF8WUfMjggt4z8YtqqdVCuBvUq35IkiHMJdM/HrWIc7UQlFppb2bHm
-Ol10M30COOQNKuqwmuUa9w1wRbsxtgFa826kMX7oqM2MOZJVUw5/jCiYU7KSNVwty8wCNPRx/DC7
-AWHV98J+XEZaPjRG9hRoVmtxsfeSSmG3hPtlm4B0S8ata4DMAvr2fOOpcapuKbtamfAjEDtGvE5Q
-bzbV64EOl6YsLZy3jMkRMFdaAOpZukQNA95atQrHdW67JPtj8B0FdilgPuaTTcIdWp28Ac0Wt7lD
-tASajYEKkfuFulr10PyAPLm022u4uWTrY96ZpINaUpf31eppr4Bk4aGwgys/1iOQMmetL6e3e95s
-KYKrGlyU85DcLtDY3LQTrcBelpJ3AzihViFWWKtq4Pp2LMsJmDoUmltdVcGANtN1LJ9SXS0XTYzL
-FbKROSXMzI9ZnBaktMXt28ywuc0nnpirkjlJFQjgaaeamoMVfbcn3YGTM/1u8snWHpNFxxuWtVjn
-6aCnN4LvE2gl+rVUlXXbu7Hi/WM/+9kWkH+zfrdS4WZlJSO3y9BMSJEO2dMVw7yqxxaOsZabvBxG
-R2yeDeDUqsVrB1kLVfxsm4fYKIrmAOxt65sAlZbLSiUMaXcs8QreuK3Bu5MeWEsL9uqB3yO0wlHR
-tpEPIiGVKYIhQHYD7T1ghbNmSfOmjPSy5s0gd0lFmipv1rHfFLUszAVo0+MHkozyvUhc63aJddUC
-ugvBblfSgXd56FBWKui07FtfbbTNgQJCk2KQH1wBbXc0hcy09hBAadNDj1YBo193YlmOqmxZjUJm
-YVJVyRbbnHpi+0uchPXWJKZ7aXHDgcdMJoeBTiShVf1mJ6JWU5qoBtGBHhLDtjzoEYc8sJLUoLUN
-3JwN9eBvLTgPPk58BD+v8Lwtu5DW9iT2S+hALmzYH7Zpg4VFibgpAGzAF1mJkx7ABenGQlcDuDgo
-BSXOcdQp8KVyM/Z17Cs2KezxXBdLmQ7r8chNBgJ3l83TLi4hs8pwYLBVRtyCdysJ7K5na2VOEbDg
-aw593Ho7zj0C46ZzOhUGz/NlK5ekPNJ1DxdFBr7Z26mxybt06ppFlbFsdbFuoQKtDUkgHWNtHeS/
-2WyZ4mIYXqXlTHXBAmoeugq4wGSy3UUsk9LnYzJrpCCp9CLvWb++WXxcHpfZi8vF29AXEc6ksMBf
-UahHmnxAvkJWzYCX111nu+xKBLHhHNUEdBvPm8TCzJN7D6ehGdxFyMAT2gWBgNTXw9QUHQjOY540
-OjDw+BLJvKNQK5TZrG93IsZ5yru0SxoVY90ilSQl0yeyFAHenhh/3DGv9ZWsJ3tFx6wOecZlT9SQ
-OHZtMhBMQWvrZKPKoAd3PG5JNCeoBGr+Ykw39z5jI2mPgq0i6N6tdb3y66gfglxTr0bdpXUufL2t
-yk9irY5BAcEg+IgVCpzHqJwLDVn0DbbgrUdMRmNU1c7TQ01YaFS/zuxlk2CjVQ9Joi0CapOqAPYB
-jsiDUgRFHU3m3YL7IPNUB26VIGwAtnmBdiVvJlLf4LRuHvFaizTvAxhbhWlxuECuite0GizNF8Ij
-LWiE1Hnisq17VfUTewsu39OcgvzZqHGwU7mDsAP1EG41TMUatG7yiMUANxkyAYMaLeajqSN7XDlO
-QAqZphqodOoMLuzWsHg+975hu2lwqQY1OqXtWZCRRAVVsnufusxuUC50Kk5AHXE4h4tR0/Ym+kS+
-gVxkSb5m1RBAld/kg54QuQfyIPGw37VsVAradK0cXMa7AuxQ8dylHn1aU9G8BrfnbFeyxY8nQIlB
-Fk66KfYnDiU+KDnX4BupDebabRb0B7g64iqVAqvwxgEZ/QiE0PZHRfcRtGm443Ls0jhB1FV1pgtY
-kH9NofQleQZ3jGKu+yxLT6Y2Sx+HMkp6lGZQKUGN0rZVDTX6QWSMZSAmhPJlGmzZHs2k43XuCYjN
-iuM1ezvZoe9VGMk6KgsrbhTQv/StdoCW8z6d0Mm8DrovoPSJq6WKGp9qsEl9xHyKjrMydMfUzFNy
-BE3Gek+qMSOvG7gkArEOCltSED3xTGFGIZ3TxLhBzSnJelgeX6EelGaFYtQmAlQjXspdz2J3VnVJ
-q6FyLovLRaB6PKuoJStUDABrKvKFUwX6E8hyHi3p28wRMqiBYfspHUTt827UcFx0aOzt1vW+U8Pc
-VXo3IpSUkA7GTu9MU9rhpQWCKz3SaNJLQZBvxjt4l1130tGsKhha5wpqk8b2yDks4ZVd231ak7QB
-ptwTlpyhPiwYAiUBPVjZ2ePp3eYiHFHZdf54yUy4A8k3voGrcnDPyS20dTnAP6kvx810y/FMWq7P
-QeYt6S6yTmdnCKilh2lIqckd3dAHafiiNqL7mM9JSVFeMxDp1QamZiCO4GXnV6tF7ho+nIe+y/6Q
-PbRWJ9gvXVVkIMB1gCa9Lo8sa7b3/UDIxZqx4VU/8BFo/WF1zQmqWcsKMyeyL0DnG3bIojIWHbFm
-2HlY9kfTe5meT2aqzhvUuPNqtZC+eSv4cAw1GQNmLCfxEtr3JU+lT0+WzsimWEmXvq3gstQAehOv
-3td0WF73GSQw4ExmdL95j63SySzuNhwNYArfkFsBlxFc4ad1Xgq4xgDiMzYmfQ2XELpFeTD/eTZr
-88Z3gJhVHDd3PiJjapUMm9/BZZZGqKpidlW0S1yal1DFTue60TfVnPHHckqmazO3/PW2lfjGidnm
-QFfTJs+qdQb7wJ2v9yVcwjnrZjw9glJsUzUtNQXgIpPtKglDC+q9Y6ZTPe3Mm9HI+daUdfexSjc8
-HZWZmaIyei4zSCM6u4Q9VB9DXOk7viYzXGpAy5YeZ6lP4nGUor+J41IJuBY2jK/KvocYzMAjwfcb
-2RV+G0Syg5odzqkf2MelqeQj8E/9XZqNgr2ES2gWsmWZ9G3hTOZPq3FolrPVrtPrGRJdl5dmMB9Z
-ufpBNTatrjcAGHADwFZQ8lkS31CBNAzVMZ0Aa/Z2gd3C/9kCcRyA59WSotmrBNS4WpkRsS2f5gFG
-gVpoWoVAUV2LxCbLG0ndegUXwZxVlqbQytBOQj8CaIy/9lVsKwUcLhpy3YQZtDe4ACBUnfEp7ghI
-31yV5VxD6WmchYQnQYWH7yfjp6pd4EbgBN+8q+NGzr101WM9z1EW0GfXo/IgcKOCdUbwfFz6BjQ6
-mbqbHkpgC4mH+Afbx/ZdSDz0FhkTHF4xjfQY2p8k5AnQ3tcTE8HmNixpk3cN0AZ5Uku49xE0QtdV
-NcPlU8Lr4aX2M6KF0L1pd0DI1/1Ow63FIRdlD8ip8p76E7O59YZXuLmmxKyPo0/FJQE1m+/4NM63
-dqhCmSPT2evQODir0EoNjWuTcpNXiRBnvJbgWSgB+kdBwxkNADDIskmg0eZhrgDsYECa90mSmvHC
-It6+m0bLU6is3n7C7Wakss7xOxINMseUaLBo73ryYUPY18cGYA4vlqbFAA4Ds3yXIDamUHZX5otp
-GAkQfKy+9ZpAEqxKuJlxkphqmY7Au7urmcGVn1OQNTgtbCXj8SrKslVDnbibFqL5DJCaJLskzWC5
-DjCALhYW25uYtXCugw/ztRZiqo7WBm4N50NVZZfQt5p7lzn/bvbpAAUB7kagwtJxGFVSpjOU2aQF
-J8fV7Aqpk/ZjlM0G6KXitYDLFrZ+aOcuw7lmvK0BqzteF8a1stpZ2ur1zNWkbnaV7kFhdoyOUPsx
-1yc2I7D9UZfz6wbuZ9a7Bu+RKAJZ5mMD4Vjtqi6Ln+DN2x2pWycVN1taqQXBnZu8HhLfHvP+/5J3
-ZstxI7u6fiLu4DzckqxRKskabMu6YdjtNud55tPvj1p91lZRFcVQ3561orttSxYqMwEkEvjxI4pz
-x2oE078PBYknKbdm2dhd2lbgjFI9fC5M3qDu4KfVX3mphrzRKVXnIAt4ABMrpKGy1UD+Bds+9jvD
-mcTGOKqkO7pbfSg9XqMp+AC8OFDVfSQYfmL7qhX9FJrB+C3EaVM5XSLGD3op6rz6hkz5YdayYO5L
-tTQ6YClBF9tar3vHEfCsBRomTXwnM3P+LSR9Gh/9QNAMtyhaU98MwuB/9etiuBl7wCiOGcStVG2b
-so3AY+XTqCRUC8IRs2+iuhtIOESFvx/qyPxhhJ75PbbM6kWp8uSRaj/JRVLkvJPiNmxCJ0nToHeC
-0Cp/93JPNBhWSZM4wZTpppONhP62InoK8XOUKaCizYHky1Dx2MstUScMH6rxhsxFX2/iyeoex0gW
-Hq0mVAe7qmueXQF4mhcdxMHfmkAQyiOrlwGt6cSjg2okX9o21KqND5zEdwbT77RNokr539kUqn88
-r5zREd1kBXaij919LEm9ZLe8yiZXmybhrilUEiqporY7mTfWYGtyCZjJJ6WTbTGfiFurrIXMjQhY
-IicfBNXf6dYkhuikF8q218tBwqtQ9r8D1fZFd6IYB3yS3NW4rVLRIrHAnS05PCTnCFL1BM3xhSEp
-ttxz+mB3fSWnO0mvrd9gWkrehY0h/xirWo42RdhFv7RCCyKeJUqQu5kahLUd6OBXlDj+2nucSQVS
-IbVHIA+S03W9o2rT1i+7PnE9r+9J2Yi+VR10vyon3qBD0JLwCrobKcv7CCVSq7+MXPB+Klo0PWDQ
-cjI/BvXXSTArxTYATfxQckIgck9yHdqlMHp/ROp43xV/jnSbUPHuBIF+AztJA4HbOzUl1yKtRfDf
-9NxuHvlvV9Wt6jRWmNmc3+HZb2pi9i21kv7HIORFZat1I/rsZgZ+Lcia6VAEefozIT75AsCRLEeg
-UTGzE09W7kwvBOXYSYPibbsia4ptw8trxOVGfuKO3MW3atO1fubIAZWlaNunuvb3W7r9/0eUw1/v
-G6Xf973MqJErGIezNrAZ5DB//z8QB9n8HxNUqmrqQKBFjeP9L8TBoEuTqqxMt4Qh8Rqev/QPxEH7
-H1m3wD6YdLNYFIx0EuT/D+GgKP9jAHIlW23oc9nRMv49wkHTJaDVFvIBhFNPUJflL0Xws0j20epS
-axLFmWhpr3Ztm6n50Z+0qFkB6p7n2GdxqqqYlH5NWVGpTs2J/3egn0IwvDZu8GlSXI/a7yGJ5yRl
-5oWC+oTnr6a/3p3EKqriTZ5Gec9khZpJb8hCnhhmQPSScsBcxeyxMRT9uQz1aLciRTyvIs59PDI1
-A2rrEsdMW8UCV8EfSaQXpIebw/32fu9ut7a9vTltt667PTn8/uTyb9d17D2/ck8324N94HtOJ357
-dF2+tnePfG1z5Jd89/ZwuHf3fPXEXz7wrY5z4KdtdzY/kh8/f8s25+8fnrf3hwM/zebH2Zv5y9vD
-1nnlW/gItjP/Cb/mNxvbdvbOHrl8Lz/xy+6eH3/juvyoV/7ksLE3G37ii3uyD4dn+7Bx+DubzcbZ
-OI4zf9uGv8/Pm3+Yc8svTqyET/Q4i9/tneO3zXH+1s3xYG+cO8fl16x6v8tZvMOn2272t46zPZy2
-8wfls+34m4/OT37qnm893j3t90/zNrFR8992T6fUnsU+Ofzx9SOTV07MWlR70qiqVTGSHk7b+9fD
-9plFbZyfzv7oPK1IWvTafNCNpYk1dZXIDbqxdR9eft379r29+XHniPaKHGX+xP9X+PwoByf03ra4
-ninYz3I4opfD4yPn7LDfHMn+5uTeOM5KffkNxX9N4KJK50lNGU0IPLmvz2gL53T9jPBzK0uaD/Gd
-uyBiNrwuRMLDzfZmVujt6e3//Pf+dYtt3KOrp9fT9vV0X9oYzun1lbO0b3co1uFxd9jtdpvd7ta+
-Q8OOzs0edf5xe/umjre2c7fnvLE8zMJ1Hm4cG/vcHB+cmxu077hfqQ+vKsKiQEwpoPMi9st9cZ+x
-G3ZsTavfitvXjmTe0HcbNuHJMw0RN9vXe3+DWWLu97PBs22P/O9g7/jVbNW+zQqPf/aF09t/3P1+
-/6e3H57WVESbHey1D7RwwGljKlE6K+X94fl+6/zZH0J7u9vOm37a4uPcp9PsJjkYDmJj4wOd+bfu
-/fbZfT48ntyXHN+2s19ufm35ASzlfmfvnr90bJ+LF3k87NC7zRE9L+zN3c/IPj5x1K4r2+4DCvFq
-2V83d3iSrWvv3c0Dfuh4mh3MdVV9a0K7ts4FyiHOgeFLaCoO+2S/4HM7m8/9Y7e1H//jmVkeTvTG
-cW+2fIgNfvf6J1Ckc7zHR/tf3EGTMfZjP2/1C+79xC6cZr92enLvXefmcMBb71+xFpw1Hp9bYrfZ
-lLjX7ZY95+rZz7eA+8LhbF/dw/09Dhu9uX/0bfs7WrTlTLglNkes8AWvfbTffNlhd7g/PP598O2/
-H+cf+uv5/jW0nyf7l28fcHb4oftHfvv332gjPn/v3D3hY/nvw/5p87T/4+Dy90/2M7fIYNu+vcNU
-v9/e3X2/O+43Xw/H/e+nB24K54HrwNlsnlz75y0X0f7hxn3CRO3N8XiLzz7u2XqXXX3bZlb+h+3m
-ckUid8v+xL18unH2mztM/e0bvz3xx7NTeHJvHl5eUETn98qJXPdeUAmcGyNF61wwuGK4JW/4B93d
-nVyuPEzfdtzjfy45Z0UP6GO4anLyzOPy3gfEnWF09HWxQbOin+6xf0xtljrf3qWNFdm/5rsed4ld
-HGy+Ee+wfZxvZQ6ag+dXj/yFg31HQLDlV/PfPRx2d/x3/8SmuUfn4S2wYVu3862JRd1huYe3cGF/
-PGKQs6pvZx28387uNLD3qBDbj7feuvjjm/kY3f3LiUjH3d+7/J3rBzDfDv9nk7SCE8+asgQwjDZr
-MFfz1985Q7okeIe2GbUNWaCrpSk6B9xHs7ku5fyU/5FCvzqATxOYsryw/NyrC89U0tr2ssjaeC3t
-EFU2JK/+MJVuGFvC3XV5H1c1I5/FGUgGYJoHwvmqyG0ZmkVZ326peW8BKwzbIKH76fNSFI0Objr+
-dVkTF6uSWjOMKtEDeaAG8ncxLNNDUwxrXekf9w5IPjBteu3hR9GWYXNVJmLQGBZZF2o6BsXagdbH
-uNJATeTWSIeRVPbB8/WVnT9B5vMCcq4BKwJsqBGuL8IkK1OownVjZedlJh+pb2i0G8XRSSRF5H5a
-1AxqlyQgAvMTYbGJcpGKeUou1M4T8sKdlU1bcqTUgKM0WYEvXdhJHdQb4G620eBleK4VWkG3lpCl
-tL6HdXRoqartdZ5vt2quWPd9lRv760u7oIXv5S3BUmOTT7neIa/KpKnYp5JXCJuo08MVORdOSwd3
-bwHmY3kf0INeak5jSH0dPBEsDE4UTdHoNrQPvyp+V64Iu7SJYGBNqMtmVgpz/vo7h2GVlU6ReSxt
-f5Rjt+0q+S7Qdc/RVHN09cFUVxzUxcWZ9DLI2Bm93wtT7tTWI10sl7aUtCoIjEjehI1s2H44+Sv2
-fEmUDqCKFi5ZIlZYXAqSoGl0Cool/UFi4jZyot9RTpeB5PjVioGdh3xvBqa/F7UwsG4yiqqWWJU2
-5fdBYPg7E0z/N0NS1FtqUeW3ymxfPq+N70V+2MhQoL4rsZGBmDpq5WlbiO/8FXO+pPM62EdKy6oC
-VNg8Vw/yr0FF12llF6HVfonzAqSWmSkrzRMXpaDsGPPc/2IuogZP81TKbkZp5zWwLmXI9W3Y5fpK
-yuKSqoOrVElKSZYBfv18LZVl0HRX6hQh6AnQHdNK4mOip96ftKiDZwt/1awY10UNBMtJlws/EYTs
-ucRICJIq1BU66MmX7ZKu/UEi85dcysbm88pgQNsA8wAuF1DCuSAahwK/13AZgScYTp/WpqsmUrNi
-UIvX76zmJHUs6BrgsJkvkoXHDQRw04lGGbBUyA/XGU179C6Sqy4Kf5f1M/ZF13aeF8c7RWt6wS67
-rLUnkfL3Z9erYzpUWmWNvn6CnvP1WmHKw7LjlpEyABMPWa0G9SFQ2nQNxC7NZnQeUCFJJ9ahC0HT
-pGXoMdS+GUhDXoHaCOKjmMjdtiwL5TnvqpOvCxSj6iLfVHEOzhv5zjDGgcMZgCa1Du0olCuh0EdP
-A/hZwiItsqjg6xdm34/ER0IHvKMQTfgbet9K6fFvel9xe9GntyisOv2xbhsK5p/dcySDTFbfuIo+
-hEejrAxpK3FTDApFy4pCmTMpbbZyshfX907KQsXGrrAmv8Rp86zr6AhOqISWnrBLVTCt1o886stP
-uzjWxQGzcTMzkbXw3bQRZwoRZWkro1nRTzyoDlw62crufXQ+M2idhiRQeYDXZ4qn9/dslsteXBsN
-zfO+pT/m5lhSKKd+K7ZJ9KsJq2l7/bQu7SMqO7O4adjJ0iN4cQ6PGwUtW48AG7pdaQo3sif6jmmm
-9Umm4A4SyycKXFnnmtzFOvXWp1s7pyabpFl1E/V5TjWnnU5RK1Q3rampjhhH0or7u7S5c7Qp0mVF
-t98bzP1dEEOPYlomVcbmhpL20gDNbDcy8Kxdn1kizA6Z0Hy/vr0fPbs1FyTmXkwia2sZC7aK38/o
-PypRXp25egmOVEmjDnzY8Pmwk1CaCIaWFrrrNG1hEbE6TXGvq4UNZjPZiPHUbodG+3wwbcHGRUBC
-IAgro7o4N0qoea7KY2ELEDftlFhNZ1Txg1jGmp1U4op2frzwz6XNWvTuwHpf1utBx1uJYQJuVQmN
-WHc8uZrGFc2Y45Nz901PFxD2WTvoyFnSjWHHMIQEU2EnnVgfA7g6dnmWisc81cxNYejd89ALoPhS
-0kj9500B8j6qVXOPGZHuYpFGPJgTMEpwH0JjPSWlJt9DjNbC36GVhxy0ZGQXgaetrPiCZs4Mw9wQ
-MsRx+two/H5reZPojSL1hKKSB7+BAjdDIUWgK8RO+LyvhhjsLbrWeaYs247MAtCy6s+ojiDvbnTY
-AA6p0mjg+yyAjJ7RUHmHKmZlWy8cKSkO8g4EInPX6eLurwLAswCa8NetLvt2EgK26sO8Pmq50t4N
-ah4BkrXAE4fg/a5b/Qe1nS9dOqNp3YccS37L/L5TW40SdVGWeBSQt4Uti5myJRfTrfTTfjhBpHC9
-wicH4o9IdRE1Vt4AIHtCZ6ewkQAFt9Hk8sRN9gpYdliu/1u2/fIfS7jSgk0OAlmEprwA6WyCRPBc
-W2I1VENtBoABTqM/pGyF6bUT5GSt5fDimmgp58jIDOhLJxaCKjF7sS3Qyhg6nWJUb0RQ7YeSboAV
-33JJFHww8CzQxU4P3sJfNr2X0eyTIqoEqULaQ3Ah/voR5OK4Et5fUgd4GzEBCfZESAbPN69MQSwO
-ckFbjSqGm0og1g162vw+fUTzNcPVyObR7Ll4xta+AX4uDHFhGqBtUYeQpsxTc8WWL6yFgHrO5yHD
-hE7yfC1YkWT6iZfTmz6CB9ct4VfXWtmn3+SWqJChpNWWK4Z7ZuGdDBn+EWEGkKpl622bGC6MmN5a
-h3TISh3m4oLeSZq//s5Ws5ye+mmktdzSu2+mkSmbTIYx5PrZzLfi2fXCckhNzr4Pn0t5/1yI1Axl
-ms+9GJKei7clXf9PqdLnB8vXVHqV+mHYXRcoyZckzi2uNFxKSF1o91QmUdKXSFR9iw2EuMYdsix2
-PKsDvRNoXrDPhs7fjKFm7TKxlP8Io3CsNdiJaFKKH69/nEubzEHqb42ZEnCK8/UHIoU3c0BrYiN4
-NVpBgDdU71byfJeEwKgAcR8d/ejNQmf0sp/CutBycGqVHDpjH+mNW4tWoa/YwKXTnCk1cfAWvsOa
-Pcs7lQFoTUvIiHJmUQb1ImRIIGKFraR1+6yBAPPze2eCkrBM2NAMTPxcWjvU+pB2OcxMjebdxN1Y
-Hgo8qPsvpJDsoFefO0tfJrWNxKiU0ccbRnVa3YL+SjeDpoSfPyK2jQcU3pCDWu4cHeQCTZHBHKMa
-wV3SW6ojhVrw2TQR2B+R7ANug3eN+VY6f3c+5tQJjTDrfhwq6SkdB9ktvMxc8bcfsxyzGLBBmkEd
-hVfbwnOk+pRrYmoA6Wy98FYYTXhqy+SYzy1gutjBwaU9FoLooeuGd0Ou+6hbRbFyt8ynv/As2Deo
-afJhdFgvg4CJlkqr8ROCAL2TpU0zBHX2RR00sbvV2r6npaW3kvBQdZa8lqK9YAa8BMBh0bqhEWIt
-zEDIA01sUysHzhcpsROI+uj2RXirqL7qtLXHvz+to1w8MvlnhjGw6Quf1so0j8BSiU8LAuC4tVJt
-jXRas4T5Y5/vqMSRkh1Dg94GBZzbG/lmf6gMjlUPQt+h1yE/jNlkHFTPClZU6OMOIsqE7oN3tyGL
-y8cUTey6WGnsYB5rIQ3QeVKatghu5KtFo8nvoE97b8XO5z1arg7Lm7OMuC+YLM5XF8S0nfilktNK
-kwquapXat7Ltp19laySuJGXyL1Igw00B4e0+pcPp9foRflRXSSF5Au8CwDMJr3YuPs1AmnY9bZ9g
-qX030Y3fsE6+ahnJqdLKwMWraxHlx1thlsiDlUoaGVZlYaV1H0ahLJW5nQkyD9aybfeYSrZykh8e
-GxYsXeRuMQRoByh6nK9LjhoQcDmkxRWI+MkxszB8KacxVd2q8NQvZdxNIXyIAfkiI0noeLy+rRd0
-VoNRh+crbRt41sWpQuBixBmlbRvAfLnVIJhtHMuTgue8rqBjvC7sguOjTMIzGYJccii8B84Xq8hC
-rPaNiOHr9Rf8YvwsebT9dGqVgOKtA+0ppoeotwevr+kf8DzI2YS6Lr8GlQrb4PVPc2HnqcWCzzQJ
-rWfA6PmHkROm+Ex0gNhxGWCuXdv86nVi+QzeUzsZvfhUm9/g8A0+fZWxCZTQyZqB1YRB6VyuCC5Z
-Kws0WRvVJIfV21OmndVJYb2y3ZfO9o2LmiwSaewl+1WaZZEH6jS3/br1vnZjpBgbyFO9GwDwrbG7
-vpuXhFmkrMg+Aq1X3gAU767ORpXlQGjobZ7Iqh8Lmj7v+swQYNHM++froi44P30WMTeMGxT6lPMN
-lDxVG42MdRmR4f2OGmn8ajZGt4thUNxTzAy+X5d3YWnk50Eca2QDYJtZPGETVQjTdszx67lhugIA
-eaeCvoDGjc8XLy30kYkA2rw0MsUL3Qj1ufmhiXJYbtUKzsOhhUlXmzLlIMkZecDrC7vgU01iKnX2
-cvRfvZUm3p1ZNGR64rcQEEg0HDleHtQ0xZUU/SDmrOXfdJ104q7krll5OV2SS6oRkfAHAiRZWB49
-vlIiKwZy+4zszdCG6h3UhfT/ZGHwFWb0/NbsAmEluLtwjIATCAFgtyNlJ85ff7fazujUtBF8XF1D
-hsDLsPIiLnPHMGp9xbVc0FBzJtoDlE3GGED6uahJ6Vuj69Pc9uppcpKW9r1R78x9W3n0yme+sJJk
-ubQ0ntRz6YRcMY/Fc3n0jPrlYEINkteqfpCFSXbpSM9p3QuTFacya+AiDIB7HDpA9pCFLZMFql7K
-jT/SZST6YXIHqcXkRqoWbK9r5kUp3LuaTD8LEyMWt72Y0oyra3iTMkpoMvFE8wYqhP7TeTB41KG3
-IgQ14MQx5qfwO42oA8pu+lggJdEGwwGFnox7NaKm5o70bK+RKF3SCrJT8zuGoOIDGbkoTnrVQv6K
-AjZPXTM9pDm0rjrxlG2UUblyUJekzePigE+RIuZdd764IqsjXSkw7mqEhz4LK2ULTYxxEIehuJn6
-qV25AC4cGR6ZLDSN58hckrbFhlz0Aw0Bdt/RGWZPgShDIJBL3loUcUHZETEnxcjPquI85uT9qQ0F
-Iz0aevOgv++MdG4qbF0jhkOX/j6verquiBd2kU2kLAlAwbIoTZ8L8wa4RxrfhP/CCrTM5eOUf2WV
-CtOsJ5DEJeuvBp/3jvCmkSklJqEyvLy2J+hshmCAdCXqQs+JBfrIZS8kSwu5qupVgz0MUu9eX+al
-PSWo1ub085xnmrfhnSUETSQUqQDNh1EnR5lK4iZJFZ+ue3ktub4mab4b3knSCyBhIIJosm+bsDvg
-qptkk41xVzD4o+Aory/swlVjGXNRdI5NuFMWC6PZ0UwCqNntZpia3UQD85dJ9yy31OpyIwzWeDTK
-0Pv+L4QyVuMNfsRraSG0Sq1eCk0lo9eYTQyBgXxNR/1roGfVVtRLZdvXgboi88LzDMdPVA02FciC
-utjX2pzyOlKqzOalJNl+kB2tYki+j14QMThTSV+1VKxcTRCrg9xDpXB9xR9j6bkihAsloqbnamn8
-opobg5LQptcag/TQyjDTJUHl/xS8sj1NpjB3nJf1SSjqlZtvtr/z62hWVyyFOJqEwvI6gtTLgj4s
-y2xPBjREOcPf0LsrP1xf3kcvwKsT+kYQrzM77vJ+7YysDUM5IGHjtcGrT4ds4MLVnmdb1Rvy1wbW
-qp/XJX7c0PmdS0oNciCZkuzC7wRwSQViRQTBBBP6scsw075Y7RT7dkVJZaspGYQzmS92tld40Rpi
-4ZL0tygeog1jjrPPjbQTcjGUoGW3xaIIEviPMEy713Kaca0eCnY7zLypd4tBLOI9yWLp7+ur/+gk
-FO4QevQoSSgymdJz+TrVCMJknIQ8xMqBf37GhQoHWWCa209LIkVKZogyzluC/VwSbwfZmhJuycyz
-jMzNJhMSfZgVhWardzNt03VxH62UWVo8I4gLOVPSCufiavhcoqGBYkSXk/I3F4gb91HsSrFHBq7J
-8p2fQjVV9NBkRKOifrsu/aOxIJ1UOu2vIpygS6LYptX1uIXyHKr6KrphBINoa1Emf9okZykmRX4q
-PcBLF88lLMQEod0TIfaCdYxG9Y6+bOHwL5YCCzlWD9KTsQOLjQTnJ4BIYyP7qfgCIN2DdkwUuzUc
-2AXLh0BMJlUJafZMN3ouh9qplvbwKdg+7NKuBQkTLGOpfwDrNxzhJRA+HZICNhPfWCjpIv2ABqt9
-eczL+YgEIVI2SWcmdxp5r03qD+qX61t4SRdBXcLrPScswaSfLy2NQvhxwpE73+jrgxiVqkNLa+rK
-Y58ciroSjyW19getioof9MAVK6ZwwccQxrGlZJ0Awy9xwUxY6IB9EHwz14TZKiUZxS+qmRjkMQej
-epZlQesg0Q/LZzVkcsjK4j/GBURYtK9S7CEDDo/1+eIhxi/grISMT5py8QfWEup2JmOMTsvMjhqY
-Yxw/0kmv/QuHg2CwBRwybmeZ+2/CsC79jkfAKJW1I/AJD505BS+S0cYrsevC3LE8xjSBKOQBgA8n
-sjtfo9fBGmKpY+iKfa25kpnUOynvohUPukzq/SNmnjfI+COc9kKPGKWYiqGizHPKin1jJa3LOAZh
-k4sQT5V6Ld5RT8yOsSJ88QZv2JZUOx88JumsnOhCnT98jIVHUAuxZ1KFDAXJTJMyaEa1IzDsd7mR
-Km5sTZtcV2DkmwdnaAAZN9eNaXFjvUkH3AdaRSKTSgbnfK+rPMzDyGjhP/P99qiV+rgR/bbb5mG3
-Vma4dKzvRc0b8T6CnmBE09IudFsLwpJGSUxXHup85VgXju9tQUwPmCdazdADa2EgAlSgGjxigeuF
-ldEfRRCwnlOPRVwdlDGyxCejaLxPRnOzUFD0VPnoL5978Re7qDCqpdJymLN6L/BPDZSHboYGrwSr
-F5bGPMt5hIVEL46xDJWZ8JN4AgkmiCRGM71ppUSJ9w3ULvKeVv2a/h+jwONfV5CFw3lbGqXLGaWF
-bB4j56eWe4YHX6saupCIRczVi4qWuS3GVPeQYcWDMVhOAxlnv/Mhal2j/v2gMtTz0X1wEQDt8bWL
-K7nqGkMVvEx1tLLx92LljY4O6HVlXxceHToZAMNQY1NB1RVqwQspbRLSvJLL0OrA+9Y5ML/k91E5
-wKipD8IGrsX5cVJkW7hp/RXj/2B+iIbCfcbCyZRTlnNPLGY9eXEED58Eh6v0RdaKrvwWNlDtqjb4
-lrpZqUZdkoddcOcTywFVX9ggtNSJ7AmF7Iyx2tlJP5kulA+Jo7VT5V5XnAuiyN1bpPABN2GHCy9e
-0M1VxcBp4OXqgo1XZhM0aY2GSyurlQP84EIZmMplzKBYHdZ9LqdzHY1ivYRBFTbUsRbzm4CBUzvB
-m1JHhkTosYGYBwqVNmKE1qDc9orWrxziB7ucxc+j+vQZuYOmnouXBcsiBg5kByU1Gf8FITZT3khM
-i9Adl7AcPlzf2Y9WwYhYatBcxNQ0wUmcyyv8IYZ4F7cmJ7G6j5Os25Rh0Kxs6sdVnUmRF1YBuZUl
-lLHCVDVBNBwfDlxGLIG6kwLroesUbcXPXBJHdnYGZtNEwfrOF6XBpluE5kz/aBRiFm0LtRrDwAm0
-hHErNhOiRjnbjE0SqtvP7+bb4BlyqlRJlMVuBqQawe/LgqOYuf4jiCljwqn5+FkhMJ1wNZDRoQKE
-xZ+vLoGZDXImUXVGlvPDEnO4k4asWMnAfVQMmh9EnQzcPPkYbMS5FNjiPL+PrMiVZao+mhnmkAKH
-0uGza0HKnCOiJEpiapmaqnOlD+Dqi9xClYnMaHfdhmK9pg8f3Qf0dQCogMLREsqokvO1kKr3RqU0
-I1fomHgXBEzJC6Fi3w8exfrrC/pwxc2IJmKqmcSeRqHlFVflc4dtGMZuSZvYX1Pcps+a5pfbMtIG
-tzZz4eiTRF3R90vrAwnBjGLSs8hfrK+a2GC/ZBejMCgpGQNjr2XoogdB6lcs+ZIoLIr7hfcKeZGF
-WmhJ0IW0fVHBmZTmfqaQcvLOlH6oAAw/bUxz5x4YJDLqc1pvoefiVIZj0ZqxW/RTvrPq5E+l6GvQ
-g4/nhT5QjgDzP1+bS39bKxKsQXS1ooDG+LXNp8mdBDW4pee1PokBo9mySajWamMfjetc6sJPePrI
-XMYAYnQFLup9V4TNLq87eX9dFz/GIhQ1yaBxbdJ+Tn3zXO21YYTFC65vVzDb8Esat4yMNIbMSdVC
-vpGCyEttxtApezVovJ/XRV9aIJcYL1vGZJIDWSxwmOpCEIZ5brOuD67eyvFt3IhrmaSLUkhqwy5F
-tpcWssUCoxbEk6eFriF33VYp8hgMmbSW1/2o8rxpcITKzJpFLU4+l5IbzPaQmiByxXby2l3eF7W8
-naIqTvdlyvynFZc4q/W7bC7LQBzNKJBn8YriNXkurmMSaVky8sP1Jhg3/bicHjItTNyomnNVVttZ
-K2pywQTI+gHBmfPmhMeLswoaVRU6o49c0yDaaBqJmpUh5Oaeh0qz7cCU33ZGXaeb6ypyYVvxx4Bu
-kMogL3FxeI0wB18lvOk+l89WyyLG9IUtKV2YtOW1hvkLm0rwr1OSw/DED6kyKxNHuAOZflk3jZ/T
-ekboB5E4aCAn1K062MeMAE0/7ZZJNMLZNV9wUIQt5+Qwh7Kv67ZNIRVUJYfckves9w0TJZS8++v6
-Zl6wBApXmDmJYsq5SwRV0xpUAQIGDIChN5xO6jQngYb73wghE02egzaw5XNYlAofPF+TMs7B6zdB
-Jopu1lvTyg36QS9In3CNUfcjZzMDXc/1f+DxRnExyl36ysuHhLQ7DMdVvwtGSf9+fUEfHCT6rs0F
-MaJEWnmW6DYYKCumrKSlC9G+8uyBzGJ42jTS4OrmXiVaLjd3zxhltS/K+DXqme2zoiKUUD8cHe8n
-oJIEyDMShEb68/XynItp+IxLyKzFmB5wYVISOfnSJVMNg7ueqjW863rI3GdmcJoVA2zhsE5FRuNI
-lO68cmOFopRKT1MKee3PMAaLoR76hLHk3wIjI0Px3RvjKIv2htDVwu8sjQTPdIRQ9ISI0cxdFkcb
-Jp9AIeoEY9aVosvYvMaPdo0VVcozVOaWkDtMDOjn7w+mUmG6cZA2f6QG5urvkzzpyl2VGlX6u4zV
-pnXkeQTHJoKxEq7NSGoi+G2LKDyKRqRHFMeibnwZYKCkQJ61fhUZW1kNsxayeoYrWzYVNrM6icnM
-lBApQWJ+I70jqzc6fZTib6um7+lrzIOQAQ85LVFS5rAzsPN2icAUaT48czeORRWljUPlNuufpFHQ
-aZXMm8iDypwieexEY2NVXwdVqaL7KtcEZZ9YlkeCkLXk2o8yGZmS6iplPxjaHlpPf1I2cBeTi3ES
-MbFUY18FtdDvmhSola0zUJuhh3SmQK7L2IgSGuRxLDzRzQNPGR/zFhLg30mR6XK4a2AJ/F7WPGc7
-N6nyQrgDL5t7dw1TpQA7txJjFQKtq/moOsiSFwlCZRpaFUaXTE+FXoBptXxoIzb/Gc3dGloSPdQz
-B03qCorQWt81bzTq16KtkqB1SDJl7VOdRyRd7S6DkDfgKetZ0j5Q5GZ4hL+7iXlF+FPLgKkkEgU1
-shO5aqfv+mAk/tdQM7tS2MIe0HfJIWm7NngwgrboOoh9idoe+t7IGe3WMHZrjJy5KkuMHY76kH+v
-DLr1eXdlhdV8gwW39wY77LRJeDBrxU/+UrmxZYbICBAB1+7UVxGU8FEnau1Trgei9rc8Taofk5Su
-y0B0oAc3Ihif/zM/aWzLvGpc38p75te9H5eUtoVuTruziUjgJZiNC19KuxyDVLZMhaqZDfI2AEmO
-skrznX+mHoXmJHt//zPvKPL0mrYFYRwl8cVUx6mmX10dpqpz3s8t6uVCnb7+M7HI8prsmc7WIXGZ
-4vLf0USm2HiZ2+XhKJ6YrvDfGUSJAHqkcd9NFGIohq5+ayKznbZQZuOBnH+mBtVeLvnC/tK8oFQc
-oWiwjVicgIhkkZBV4o0CC25hMdILPs5+x8wdeJ8h1TZJA0KNH1MLuGkFujgtR4KHefqtBQJVLNcL
-alBAtpSPYq5ugQhBgmzXEkNaJDsSp6z/AcJSgIWcjnIvu5VlXwClCscPsGR7zE0//qmV1VCEjuGL
-k/ioBwXECXTtjJ4V2VMDRKa1cbBa+1cajRHzNWD6taoWauO4q+ujISWl2tzFuagl1aFqkqBodxW0
-237tdDwKmOJUKLqn3WZKpKctvEVhkAWHBm8dgZGWrAZ+ZPhrNEdWBYHB0mHbMxTjMCkMAuu/eok2
-tu0jo5HL2GK4j2X00tcKbnJsnNYzTYnmmqRgnIZmGoYbE9BQLW8Kf1IZfmONrbSp6xFKINcS+qj6
-kkblWO5LuDzCCERhM1OrW5rcM3Qnlal5bJto1P80RQghvyTGtfhqhHKdPzPzRyxB/QFWAnhIE2n+
-W1bwybbcES04/RB23Y2ow1r4PPJAbr+JTV4luyTxdfmmNuGicnBf4i+jSSE3CtuxOFQes4l6zZMg
-iOhLHx535uKddO9/STqv5chxZYt+ESJoQPdKlpH3LdMvDEmjpgEN6ECQX3+Xzn2f6e6qIoHM3Dv3
-8sr7hM2Dk9ck6h5dDVh71kbJFLzEAADUkXHTaD0oB2Vf3ofarCzuan+Q4t3zmX1/85kq/5084Imx
-AMtIyZl/FpKDS+j1luFDaPwzdmunuZ62Lg8O4UqZnqk68YZ3f/FiAd8DoIS+EYFKmidAHs1wA3st
-yB8I+rbbDeedft/BR5WvRUeo/Xe0V3H7WEObjh7nwdmTd7xAcMqnXlQRwBxttjO16kaAuO0wjR4H
-0eY/fTK54wO21ao92aKyyRePbM8zl7vYXR7H0Ou6/5Jc1iFLhSPfw7Hfzej/VNIwnU5FP3o81Twj
-jn0MfABC76Lb5vC52/ZhvypFLVnrlzZv1GtexLPTXch1Cqfo5ARjYd0LS6OQ22xf43r8Z+JtdX6M
-AsMOa3N25SKyaRbS+/JGkpx9tuc7G+6AWBwzNRkpSAVc1SQpq4Bdjb78daWOpT9YqNZbN3Q/0dI6
-RD338TD97t4X3px8wnh19GtEjnbFpdTzoJcpzrA9BO3Ub36AM8VdwPhxkMZ2PMexadg/R/cYbisR
-rH6KUYa4IMBVnOdYD6blo8UXOqbsUFVL6tWucjOFDwSPpdsLhCTbV9iKHFXJ+BWspmxf81W0/xWd
-JmN+kI0hinzR7qsrWBrPfJ5FPwOhMbbf07LHTxi8uLGT1intY9it9qLg/cpvVOlDiuP0Gd5jF+EX
-aLFRHxOmnqdm6+v/4N3O7YXurf+o1zV8ZOkUHMDvtfBRxO5o2XOcwqtuHcrlmUohZiRdBkkLG4hg
-izNhJvl8dKIccrvfJ2NwsU8Othbsvu1r70b8WNsuLsdxcwCN1XnppKUm7SDDiEcUQTA0TX2qwyC/
-obvZwGu1zf5ZCe7vSz17gzzqclqxYM9zexwHV53CeHPlSTpdcab5IDFEb0o7mNryoTzotuudzGAa
-P4yoF8sZqoX58PFiNtmQc8dkgTL8KMAgSAUyuFrnjJTvRV1OlYGIJQnBb44kxSWASSq7mkO1icle
-FURegB6tu+hCtSM0K7ZhiA13BNdQ6v7+VdnSewrPB4h3mY1uHwKesZ51MdkV5RPHnfc2+X1nUm9L
-pj+yjoo/QWHzfyXKzqM7En3CNyKEcyqrHh3JiUaH96GvkxWq+/QL9psbHd7ovLXqse934C6enGp9
-aXt2dE6LP3v2j2LLfDiQuU+ueR1MKzIQefVnstpbecy32Okz2If6/vd3YBK+qd5kc557XkaN0kcH
-uVOL4EvcWi6ROmoNjK7F+0zWoL0uSFW3B5zNFZ/BsbN/Bi02sFG+V/Xfnp+myqq1ESefre+Af22H
-pSgIdIftr1VeRrPTnmqAaR5Z87z/4O7jrkz92i1eRwUF+EIWZNOnEZUKFow6TkAauI2+V00Yl6fI
-q8mzSaYlnE9+PzlI+mBDE2gAE1ya0uDshdjmluSuE5UQHPel1U9rNLXBc6sK4uzXUNRz2tpIQwIo
-B2tvAzC6rFkXPnTBrlgj99Dze+q7YXe8i76o2+Cy9xuocy0h+lSX0QKuwmczCLxiNHOYTUT2N6cO
-XOS9h7Wq/4I5uKUi5sxMhxBk1KEsBv5YX0WJOprEUPGFURUUOMW76DoBQC3PccMZvsB16dSP2n27
-/oSErry3jeY+qcuq8g/dlCTgD/bC4bO4U5dRLUnSuFfsHle5HYNXL9im+KrL2QPISt8UT3tUdE6q
-cd5fW5NTXJp1hR9pdp14h7CXhc0InUqIXCxt9bANnvd3kkl5U4GakenswEziMEzqKutyw8G47q78
-M3rO9lf0Kk9SYeDfPXnLTFxBgMWhfVfjYJiNqWleujteS7hv+OG5+cK8csRDSV37si+CWBen96rr
-3g1AeIFa4b+bVK+KA0Dh2L/gpwrMaV/KdeJR7ZInw7pJfYSMO+dpgUZdXlSrGMKTwqqjUsMaU3TK
-55xx8C7yFvxCb913uYpfQxTbnPWJIeR0THyDGzQHb3fePeOQQRQURXsW1NP6raz9NdVxBKJvKhbO
-LpSNSLWAvhLdXozsuz4we/OaA/qRcS+HaHbZEBP0LLxfYSXMGVKprS86OIT6mlqFrk3xs9QXDBn4
-c5x6AWsyWckqPAss5RuyfvvjgY38r9T9+h/RL+UnBMvmpgvw5p18uvSHvV7US5eLxh4cHqj3Bajh
-dHaU372MSjicma27+6fIhnCTQidPxCGgoPDPoWtddek37fSCzh4Ue0a/T/cGT9h/Gtmx245sIOkD
-uKCQu0Bwa2XYeMnGyhsZVxSDHQ2qafzwAVWeYIqdZabkhEffGU8iGiP7p+6SWF3OUlEOz8aJjntj
-uIfSqer8+ajJqqvSUIjyoy7YnE8xrTntC8CDdTqYdsj9M0dxf4uJImfF199hcUVLEqZyr8kJwEiR
-/HNGz/5zZpH8m2RAZ2tqgL3Z4iwBomU8cZ9hsIPnI93Wg19Ce47v5Tcs0rrt8LmuK5suRem3Kp2S
-HXSaH9EDzYmrKJHF+CfOo/6r7TbhX/lsp59dJ4yrjHH2OJDDwRT4xOaK0pCucrwnZTm4r6bPDa9L
-vxd/w06vd+Eu889k3sTj4nvLYyKSVZ01FQ/2yTlgqzhqEZ2OVV0Pp1W2U3VMXDg1cD2r7XYdGuuc
-Grnar4g4UtgoYpu/a5+MBFJeOj885NaLzo0zGrhCqtg/J0caVuUhM9oLoyb/C1wUOOgEvuCn5vDY
-j9ES17de7Tn/4Kytd8DbNY/SMIWfpmjqlzIgIYOVxma6WsKCEilATDEwsDxpLhpMuNsBBFT7zw6O
-+AI9X3ucb9v2DBuPSJap35vyvq4GiWzamu7HbaZxy1YgOOq4Cdk0ODeb5Vq0FjaGD0n1XwE65O/m
-6+Jx4Qp/CKHrfpRzEEM/5Fv7joZ5vLbt4FLrd/zmKfkr1s0aJagDm6b8XduVE7YFR25gTug3l7tk
-pA1Pa6tmuqqt/G0T4qB6cL3WAj9xqoCJvEua0clMm1nSeqiC6Ixy6X6EswpCskkmcS/HgNfdY+0y
-YlBFDw/cz/Imy8hGDFhwEsSoTWJLjqtvWeFQ1vZX0F19eVo9GvujB1F4SWc5z+eo5rtOk7mdw6xf
-vF9e6hTxkAGMlPf5EJevOC+al9VbmAPR+C1T6utkcNKcBIYQ2l1sn1RTBD+mTxqIkdVUXNlS+PKY
-xBQxp9G28ZwpkDGMy3O3uHSHqJlP1ibJC3d6Xx1MUHXXNRve8yW8m/Bvb3xxa2uxByc3Lsu3goJ1
-uYqKMXkqk3yDlTMpdgwm3wZ5tpXDcIxdG6mLwZUd2CKp5X8xJD5MQF3eXMsdWK9cFz1nYzD9gry8
-Tazpxi9zhuPjrCcDJvM9L+xmbzgtgvaUeMoDeRTPazZgmaCc1QXNXc6H/6XJJts7Tbf/Eii/eFYj
-i75pNQ+BlxaCGuDgqc3511R1e8263+8RzvQqPI2m0lHGFs38AKwLfBk/ocsXsK9htrOWdU+mm2+z
-Uu9hl5pYhMOxoGwPYAtJ5zIwKx8zYQmCHMh2jaKU91l+o/DlfxwtpzeJnf4vMsF2DaYQiOhcNslb
-vJr+PyaBzcO46ParDnb/sudjjhkqOe2vRSUiLQPPPz64Nckv/W5qYv7eZeOJEvm8HnPHN17qynzg
-m+XMYA7iBdNTQ7gHzb6HK4LTMxoeoO9CsiPEt3av9SaCv2abgtsorMfPplLyzY+Q0FIo8POXmkid
-Sm3D/DObWjB2HHt146XjMsWfKMwUyUuZFDd7MNhf4rLb3wLycCpWq+xyo5eCIsVxF/ew5VHTs9Y1
-iDDd6Ds+BNasj7gKJf9uT7MSgnGjP0tdQ5vczGhpgVgrpfnfq3445+DWbvP4FwoSIsXO6VB68Isn
-OKjLkapp6zI57TVw2zx/8JZwhc9Lf7RnbfFbtQ3S9BddSB5hanQY9Vnhs7B/FY/b+OmZTb6EeyI5
-u8XePfbdHL8Fhe9ul4kq1Iue6/57xmJ9S3xEvwG7rRK4oKRgvDuWQWrqcQOz/F8N7hNILq6AvCQ2
-kyM2jB5t50Rvi69p5XARy9fSGK6Otd/Y+glHZZurGRTrdTPRJFP7+v1y8DtXvIMfJpaOniGnIY0l
-QU4TVctNu3fzlGrZDCblFQ+/hFgb0I7DSvBRTUecNYVS951PP8EcCE35DIy8vhl3ghLOuUjcy3hS
-0U/Ryu4K/zpVTGMoMVzIcS9MlqPhgA05XwFFibg8xIHGQN8wECMqk7352wqx6Xtt5iQ8zXPvnYLQ
-UNF3kEirzBvH6cMZ1uQhxNyH174jkiRVQQsAMiH78Ropsw+AIqrquWjVrDM9d15DIKuh9ooJjfLT
-GXLb85KIaM3aVfuA96Rrb2RcbAlX4Vw9xaTwRmmr5yo6+fHinviN9U7lxqpz603iA3MR6+4svXvT
-AcLjdAPWSq8XCpXoJRLrWF6RGsnlWFJWlylnkbhISseaM0DAKDqMQcyWelBwyEiGZVc5cLn7CaJ7
-ctxtqa5hdo8BDViw+Wkitum+WkNutS4qkDGbZewuqgih6AiQtXwPcr1/Dol1hgO/obpZ7OyBflon
-Hu4GGufbLJT+StpGFmBBt/4bkWG7raN1Lg/0zN3dbDfRPDhEMczFU6IZAh9s789QefKlGj9cWM2U
-HdUilzuZe0V4iLt42L7ULpwp7dTMWyBioOapQ6lOZzj5yj//GgBYca7G5DsMqhGi+jjt68eaL+4z
-7Ov+YjNOyYuzm+UdMmLyDVa4KU+x23WvBKfLt6UX9Zitvmg/nIpbN3XouP/s8AMJXQqT/uSOIU9p
-Ei5rcxTTksRHu+S6uhiZdU+p10l3vymahJoFVLR+DuXEeNEF6LtlPgPsBuyrim1KVGlvj3Fc94ox
-h98+K0twAtHpOxRzO5b2Y5Y1ZagXuV10bBv+MYfeDPzVNh6i6eDsm72leB7oZbdmG7KWiV51ZDsf
-3OKAJvQpNhPGxXez/44UNmcYHuMaHuHRg+9HsbEO25oBf++YTEXL7GRiszvk2E3Da+7RtP95W+QQ
-+8vvUHkXQbLqv0O+kHIKAH3wM2bMtDXb/+OuRdjrq0l6oiGi0wftSsIAx9E46rLNun0PHpZ6VTfG
-EWt3sMA3q6zYse1lpR0JkS/HWa8nz6PGwAFTYANudTsqBBrbPdXj4jn856a/c/2aum2rd6c97Ux9
-ZRbCkH5sG1wDqQXKysRNtdEdkXR+lM46XP5jId4uKcMQRx9CfmZ9aEcBW3TUSfFgNoJxUgYlyjkb
-XLvrIbCkc2ZBC/OOR8eTt02eT0+IKi29/dZ37u/x3XxWVi4c02Sr8b9XVNNgDV3z4u0yudeQOu0Z
-u379MHWF6x0CMiIe54TwRvK8ZxLfu3D1kKvccqEScCbPFaclYWT02pZ1gcejLgwE476r9lslFa1a
-wDUING1eAnvUuyC4UzT72lxXY+xejFrPJtXo/y8lT9WMs6aJS2YVsi84jCteqAqvTAF+c1I0omFQ
-nJfCj/cDwcQaKTOv5yKNCR3Ps3DJ7SdU3Nk5l3Spl8xU/fs+WsN/pZ/IhXOrmLds4gGK0qBpduek
-9kLthxGo48sawA1NXbfaJrIxZBMhwlRRm+lWY/jeyMayMaYLfwead48fVt2t5KcFGTrtOlDtr/Et
-ItH4B1Zk6yD4Mwohy3bdmfq54BjxgwDQzrZ8wj/qVtxNjSubL1CWO0NJmagX4MWBPraRSLZM0B88
-JLamcmK7aCxTMMg7c+atUZe577HXO1v01TQgmaE7RFSuY7ag8bX8kntPA2BlMGZBreVzAq9wT12W
-Lp+QfFxGGIO7UAgtQLZnFaNJbdGsH5aKkvdAHre6bFVJjWEKYYaDWUvz5eWb01DvrfqmhtboXnpz
-Ll7GXfqPeH/BagdznjBhdbpxPEIin273PmAAVhbB/Od/IgOs6UT/eMto70WXz68i74cGsPFQ/wS+
-4jrVxu5f6ybGe3/ryp+hJ8KD5sDP7/XWhRxBee+9mkaS12uYPl1EXu99wyWXQGwlzxi66L4cFtuN
-f6NOMJjfd0Pi1hKXDSvJRLmQ11YHR+45eY+CNj3Rqu4684tge8ckLf52KBNcZElpp7RZXFHfkla6
-k+sOJvVZb3G54fffwR5oLxp/RofMFqr18EcQ4uhkNKPxneetNZPe0U5/hG2prMt5cW6b+veksWWZ
-P3Zcn3O2zq65Rhxh+xYjcyTSvJrc8NYGuwyRZtrm0bob9S5/ZXfvWRESa2i47+LILE06RqHzNMRd
-PVxPeeRZBKbWBIciAtzKJIMYmItlkERlBSSsBAcg7ts/vqHfw4pSU2Waceqru5YMSxX5eGsaSMYe
-BdEkwQWXoMtcu80Rwr297UFnr0t0Sjpvu+HY8zvaD8r7NIxF/y8XrZRZZ8uBVtj4/VNtk2nN0Mur
-6ZTIjtAXz1bu40gJ4mQhLp+HifJ/5DiIS8Qn1kcWNuOtM1JkF5b0dxjYJlWcdawnmSraLiUbgT9x
-UNcybd1FthkPyfZullq8FG4NwHHbxvGzUznTWgNITqWLNfohJJr0e+TmuWfS7D6Q19t7DwNe+JyR
-XatAb/wqxLbu3PEtZ/LnnGt/Wx5aeLTtdR7O+54OvF7hiWXEoEhr8Rt4/Js1fGyniVrej6sEeOQ8
-iSrDYlt+dYrZLEuUIw2tGAHJAi5W5YPHNuxyHGcD4jOfkPgtVj6+382jqBgbJ3xUrlIDX3VBrdDj
-Bv1yFML0sZs4irOttjyxMfT1f7PvAKzfFjNd6zjkyoETOblZZAL7yRw8ktmECfkcEntbXlYSe/zv
-NUcepta9T/nXF8ztiKHx8oyx7v5eW+N+bKqJXfjnSlyz9N7/hNHK4JmQZ8JWayTgt6WJTJQ2TouG
-HxTRcNlOgj+5Hc1ASQu/NMgGFQf/0D0C1A5cBL9iMQT3tJMTbRah8c43sxPG4h2HmskU8qF3s42t
-86cRcvCOAl5hla0VKj9z5BwxPiqZ/x7Ikuuf1OpvXxYn1wcfCEILzUbTHSO2Q8JMDmaazyvZ6VcM
-fByIwjxCz1RLXXMo/Fw4WR/vwj9v7ux/OEFXveJSLf8uzGY/iPJ0y/MsTfs6AJH9Gfe+tClFj8PM
-H23uS4PFvbVJPKzjMTCJ+41xXO+pl9eEAECikOrSUc361oHuCq68ssvHw4wbhAeZxc5/vI92YHo4
-oBNXptko8XDeDMdQif/xyyt5PZE2gdxkO/mT+y2TALePcxDBa7ieomrHTVgtgSPoGHoxFbdFULd8
-ZpQBkVme1+3UL4vfZC2/3VXn9g5aMguZP0qv86PudopakU95kG2Mq/1j0AW2zrTT+M71njdjnhJM
-FHwIz6IIdUXszaeaBvYpUsLVWRIIsV1WY+m9YIclGcBxS2qDqP9FyM4u05nitw5IizzX903n64bD
-fe2eBUR1yS0N7SPdXR09OhNc9NMq5vZvpKmOsqpjWJ02ogi4z7xGv8yDDf5j54L5TKeWPkrHmX0c
-+S5JMnRv/W3z9hs1ykoACc6ZNpkiiO7x6mp1iLmH90M5xwOHkggW1usM6RCnAnhLc86bIaqvPY4P
-Js/lMLtHOJXVC9D1jXFPsIrq2ONLkozzPMbKeg73zNsW3MOu2tUre10h2HDyLKC6wo84hJ23zylX
-JBrHwk3zMxGgKw8oPu5VuLY5aPkuCa9CFQvLQH+1zyVf5avegZuntk6qPhOKsy8zpQdHW3T9oE+M
-hIqHqfzN52jW0H0VTrm8se/B69ct+YAY1Wo7HUoZTxLqrsaKIfPYu5xq3r9PfAIckDLqELo8n8NW
-UWbxcnbeqFO3YsRAuAnmSHITJ5rYKhxmuECt65+bmdw3boMoP0pLE5FKElNPnZlFfRNsIG/T2Dq2
-SgtDMlHWdAxUL+INCK0OhvKt40gp+RKi5bJ3KYkOMR4o+bSrZrnZpNNXN1Rn4c2qnag7B6YzVRYE
-LaYaKgemNa5r3PHQGk8wgNkLHp4yCPoPsy18kMGviseWpuvN0hOw4iN6Ag72WOd/VFzojW3KPcIG
-xNVRH5F6x2utKVNOLTN1lTV6GxfWZ/3xzl3W/ls0IqiurRcGF2xfL9+haYKj45XLcMfoHs1rZily
-41Aawn+Jaav/NrTVn4bp66vUIdaJXJPok/mqoHqbB0rzQ2W0vJ+xe+AQQ4MlR8lsFsnBSJVtHhHk
-hG6u42dU9xyCS8m0nJtkjsasVtXET7FGPPpzrDuZduUkXxOsR59l49pXZ4jiJW29zn52BES7h7o0
-4pF6YsehMvCPj+L2j5TL+Kps70D+Xlu3ZgcK3wnOMTlStGyFrog8Crud3m2fIMATAMOogfR4xlw6
-GuPUXaz8DNxZ/vGdaHmUggY1nWIzfXtO0VGP0ATpQ46sednyASnp8sW/rihJw6ypzNTjWSGzmrBP
-n2BaozFZ8Oq3+sxdWH5Fcg1moqW33SfnaajCg8QJUx1yvkA3w5Yb8a7mPAdZ5fkVtmUyw9DPNYat
-9PdMZmmFH1imI0ipmy5m3Ikip/QrAVPNf8qasceFvzf3XUPledxMoZG1kHfbQ1IbaU+2RtYebNgO
-2RYpySfL2RI97jkXDNp4bP9q5ahPGgL2uKtW7C+euzlsrYhhfZHFVj95m3EZGrkrKhzXR68z/Boo
-00089/dmzoe7Vnr+n7Gj039k7OTLbMB59Xdjs+6j6Lf2eQoVJTYO8BpPWJX7r2Ww9Wzgb5V/J5C5
-y4u+K4bP0vS/DkR6EJWuxLjN58XplEjNknBfiG2pkZMQE1/CEFNLXRJzma5DN/8YFi7+hrSgBfWG
-z/vpUyRQTaBxJcc+XKs5G6a9+OPOLmYijaLzS9QokSuCfuV7rlqip9Nl8dxH66/2sQVMphldyvoT
-Rx1NyDab/yzO4jYtp9+neJpk1V/sWnXvPYIwD3TS2CoTDAaguy9+maQMnRhF7aEqb8tZd1E2Sm/k
-Hl75n05DKZcStEfJcLxxxNZcyDbHODQVdn4EQ47Fov412qdSruWGH20R7/Tmzb0fMOrmm6/FvR7n
-4oF1GsJzc7eTl547MwMefy1KvHBBQECk6pf4EDFUe2WoqD+cYvWCY+Q0zGXNWLl3eCa7MGOvhMEV
-/VqIKl270ZZxzmLeoPTqHrcFPMxBDLDBqdyRkg+8Amx5FDj23kXpa3vwy825WAXyO2d4YT9jHeQv
-AVUM31Moli/X31H5WYivQMy4wUajLtby1c2rIL8iknW97wYSY068ChxsWPO4K/sADjIKrBkKKnd/
-ZN7U6pCrYuvHGyE5W9JoLmZ1mBs57KkIt/yefQvzZLx4/jJyluOFS2bIddcgxVO59TmypAw+meOt
-HH/RWFz0Phv2zGKr/uysA84eK4W+5qNOWBsiryyzjZWrn4rnh7+B/PbT5LThP/jyTXgUo+k+f48H
-ujQ0D3K8qSQuo9y2xBqil34M8eqy71D6RccNJWLGM8wo7pqR5QLsMWF+t0cNNL+dQRxehHLvzSHJ
-+0JTEsnqag86Jtg6x6fOAAP3x2kQm7pTSc/l2Q7t6vH4jP6VCtCcyLxx+oYeKlRPzmzr77Xfo78l
-fnAMmaXvvE37QFMUNKTuSFvitik8hx3DYnFyyvLQ+G88hfUNVvxvm0/NkPmdptqLKurzaI89EiG7
-xrmoPY2fye6InBzY9VAe65iSPTWCTjStkeswGyWrd4kpp4yPJN3BZQo74X92mOE4rXyu4bozzkU5
-DbwSDP6Th8nT/oNmAt0d8tVfPwaPW5OHT65fXgdqKK1VHV6bCe9X2iV99bpuyGXMpNbglh3slSfc
-eE55XDD2jWRDaUk3HylUjHB0nSt+uBGvhrLiRSW2wMj2a0DsA2hDZzOYigM37z5GlkjfV3/q7zqn
-sv5F3Wjn1Ak7yzOH66CyaO7nUuKaYCQICoh5QmOuVIf+6f4qiXjq4jRio9Rc2CRo0RvaKpw4gTyG
-vUBSWHQgJx952/iK94kfIR/xMc1BiPBh4lu1VtDMJp/x+C1LZUwPOqvCCK7MiD+XsQTTCu6Ncj4a
-HTX+CUoQI+168cf3vvbWn7XjDiKRC8X5UM/b8BwlrmhuMPpW1zWnRZtF629XhcbMPwK7TFWkEbXX
-Ozmk4pqtRWTsaF/rT1nK9QeNj791VJNKDsytmvh+lC0DYeiGO/0A+beorl0cjG/swengugz66g+m
-g3mm4DJ6wTJTCTwjllUWlY0aB9ZFwUhtumGddro1GM2XLGbctV9AR9RVeY/War0XHBb7F4WXwQ9v
-I5lPr3OhWAU5jkRwRZcCKf+TlO/13Ra+Xc5o8nF/SOiK8VgsgnRI+muG20W0i4+ESDRiu+IwuSsX
-lZS4wcqY4rrvnydkfIxVTuV8CewR3WGvVJAfMYckWKNoTduDnPAIoXT/vgBy2Qgr9LrYDFnMnRJS
-YUc4zVD6kpe5H+LHffFXB7Fy52OyoTyccdqut7uZdsZvOyfDAWFkeSowTS/oQ64amGnG6rUiHsE/
-LH0/kvqDC5AiU7Ubs+Ip4MgZXUXTH2MMcbGMzfOML0WUColB8Nig3xLjqPQe5RcDs+WKkCIK3Kx3
-PCRDJLguPBE7pslmIkotPjG5V9xNvoc0J7GRkxk37rTL3Wg8RCtfFM8Uj6s5liSoXhEm4zJhcToh
-aI4nHt/VOqQqDHW75anaON7RERn4XJIKTjON4STC27XX7megPMX+cEeMJmmrRtlD6xv5X7l3nIGi
-gkSTCr9lRpvUeIDThcP6aWyG5g/GRF8f6ertqynKtrwUFN5oG5X2H6PCI2HLuponcg672UU1dN3b
-leLmc6hN/ExccIL5CFJRfmySnZXO3ffmuzGuvL9l70XBoa6tc7kHRa/vx6QfH1cA0w7ejRgHe/9b
-2re5r8ZMOguuMCpyweZ1F05vXdnQ59bEgnLIY+LMD0zG5SPHARoSO2ZYcv2uEQLzm1geOKZ2k/m1
-wuOoaxKN1uF/94CcE5P2Tj/fcjSiE+Mjyt/ZxGguNpJV7QHDA/IgNp/hY2M/bjoMGN6GK5gpzr/C
-drF/dgQzvowxgctV4oTQIzlcRHx0V5/2k/Tz+b+28KaVgloVr2TsmsetHA03jA6Lz2Hetn9FhM3u
-pMZEfSVc0uMx5MVCiRjqeCCCpo7whW6UnBlPPGK3LAXvDVsMFH603uqbGX332euoWlOXaPhXVFxm
-NOs0b7d9vyafZL/g5kExDgZUgL3GsuyL+L+mbvevit6KT+U2eNqWNjIyq6s6mH/lvMBkThU1fyuy
-XYH2uDvr9pJJHapn9bvTMZkEs2jX7y3mE8fhxy+Q7a6mdfPm1Im8NeA9kKLEZVQX4zHWCbZr7hZw
-SnEh9yJDkB3uoI452yFyQucmKDpgA5W7Nv2Z+lG9DT2nMkUc1qPF0xz9GB7bb+ym9QN7rTM+w8pr
-xRFHeP4wcz6VGWW+S5tW9cuzh1f8j0a7eQlCdATJ7XjT9o3/VDe+7B6Hel2I2kkqs114sbHPUzlN
-xKDuo08MkG7m/Lz1fv20aH9i8rRuLK1szs60kdqF0NTdi1V8pEsS4bGSPe2inf6PvTNrqhvJ9v1X
-qah31dE83DjdD5L2AAYDNsbGLwqMseZ51qe/P+E6p9naO7Yu9XyjOzqi2oWTTGWuXLnWfyj1ypUb
-Ts3Gb8KB+Gj1VXaRqYPcQsftVdOitqoRHzSl4Y8D6DzPRTgVgoPWWo6iQSSN0Q8zBzixQyKj8647
-3jgAunCp/zSAm3tReRrwqaVZzCXzqbV7agCcbAQBA7yhEZMffTV49x6Z/k9EoeYy6zj0KoGAHHAD
-FUd5hA8C0iOFHvRYhgMXedVI1q5M+pguKwyhdD+A7/zEW6XA1DiSa+DzGuSgXppKyakTmIh2LMtJ
-AsKEIonredBkyCMN45baNNmmBivgQ1QBv3ND7CVNmgct1xPgGuVBHsvwx2CC7HWSxCDLhf1XlU4p
-mt5tFqngjMj8SXJpuwbxNldS/bOQygB5WkRDbmtBaianNL22t6G/gWYqDDG/j41w/G62uvRZp6El
-biRvEgU3sCyaE/hC+aETVympaSIo2Z1kNuYnnBvzR1GoNQBLee7LDvGQ8iHOcNkVlDQhg9dcKU/o
-yQP4BI6bXlQQr7qNhO574/D7iPcenOfLaepzMCIUUH/Wceg/ylTTQNSWQxrSiWWL2bKSCiNIwW7G
-XQJwAxwABP6rl42B6oJImmjDG2axA2HPTypg63LuPbpvJMdA8u1WQSdt41eN8bGJNGEgVCeSRu0v
-ir5VRRzeW15s3dI2pOLSe94kzAWuIbdNXZBFTDxU0v2RyPZE0sBTQwZlaTc5ZAcbYpX3Qw8oVWxr
-q4xUdwQLYYHzasZLddJTtC7E+YaJxDIJN2oXUJZNQHQoGyk1jZv53akRVNrpos5rv3K8tqO2h36T
-fFV3k/rFj4liNgKXIe5DPEu2ZlWQziDeXP3qIfxdhWXayG5XifTLQxNWASvNhnS0pvQTu5tG4RsE
-RL7xMCKJboaTdK8MBlItJbhLmdIYKRoOOrkM8SbOrLsm9ibN5rEekDR4ksSBEGXhSx8q0xcv7FoJ
-QPhcZ0YMrn1So1opnamnDuNMOFB4s67gSMONmtFtOha+AHyWZ7U9KoZ0DV2s+mhaPoBjQ0rJ7H3V
-aDCKsop+INLTnpfrkVbvNMS9twUoqvr7RKqtOyELUNGwLDr2H5Sup5tBO7x2PcJ+DcWCu/5CjlRL
-sOsGH+UmqwTeog1t9w2P1SyChhjl+Z08SsACwIzVkGg8kX4XHLl2Uw7BWLiVOEiqY05QoJ1BbNun
-TumFftO3lRRtrcCKOVOBpZNpAUCdgM/5fuRKlATDn4NPYWbTToLUOWkOAZ7EbIyBXFilHF6iP2al
-130XmrdaGCelq3RTAk0rB2N3A+WHpnYLT4HFKJX0pxRnUr0dg8kb3HGgZLX1AxJjV2IVK3ciiJNb
-RHSpWNikECSqQrL3KSwNcokS6wsBoGdHEjJyVl+SbMBMPYT38SlvRhReZhuAawwRmm9gZlWakHmt
-X5cafWdHmcYCaLFZRGgxqp4E8pbIZQs0Uj5KngTkZaCSChKvB5btJvCHfuZeMX7JEym6UUGlizNg
-kNox1ViDh2he/DK9jscfdV1qhVQPybgijYZNYyTidzK+vnF4omSkoF1l3kiFUko7TzWn777Qi9dQ
-TDvxA2Qy5WevScpcnEmAZ+Il5F9QGA4m+qNidgO5QJHA8CttQJsdgwMHEBAnyhgi8S7A9CB2clXk
-g3WiqN23dUVbuWx12ruxWFsXo+A3/a7ne3+euMGHvUo14yKienLXKB01JDTO2isAEdySOeiTj2QH
-XBeJWOedPdUUMXZmWFYUsGTYBJ+pSSakIHkng5fKYvNOT3PAsFw3/k2ZgCS2O1b5Kwj17mZ+6AHF
-ERP4YIKQ17fwJL3nuKCC7HTKwAtDHcwEmAiWKo9WMHKY/SIYDfBZCeWKNEJYd4ManvqcUGxDGVYu
-gvtAzRpevqJVPqIzpCcU2bLk2ZfKChSEF1NSgs2dFGDSs+JeykEAEGTBX6gamsd2WGNI7nKKx+/W
-qE8debwCFqSnVKuBwiFtBCetJp/UEC6DQxdK/6GZlXHHHVQr29zz6XOzdauN2PgVKX5VKIUzR+dx
-K0cUdzbR0FDG1swJYGRgpjczBnV0g6Ecrslcslrf+3S0x02gSmaJtFwpXNcdt+Y+znPlwqQmItsm
-AvM84fOhkG5qyIA/K0+cbvTQTBq7B1jR7puJ+tst3DMPbVPByFmbQNXyDS5ejXE1NXpSPPAuEB4E
-i8IobaBCBJ+vR2S5TV9Ij0k2qSI5IM+jZ8uPOsHm+QVG0ZMgTe2KEtT4VwPHUIuWi5VpBAmF0hg4
-W58iPACgcPwCurTDb8OCurRVCrg8dt6O+NCeZ1zPWgJvxQ0wD0D6E7kGEZEzqpALcncijZpVAvyh
-IazK34U29+w2LtudEffDrSAkiL0Kns+na1o3iVtpd374JeF7Hh6fVuj4JjK2dMEOudZwWKsG2Epq
-Q73iOZQAZW73IihBBVXb4oYehWVPmup/qIYEWPD5wZeuYpjLMbosinQdFX3WTzkcHZ8wXaN1l9mx
-x5W7qSSPg5RiCbiJeVWEwJqoovkws+mfh7yo4Ihu4gy0CUkMBe9Sb76t/EZL7vnyN1pIrAB49soq
-5XP4uUocpoXpRr4lO6RKDyWpMIGHXngFG22TNL2Gvpc57rKMCoDc+0DDR0oO4EmslZVaSgC8/loY
-GM6qt5JypCxWDkToVuVJnKU+5Va4cz7AjoRqZFzneu6eX4WlNsQ82qzwYczqpmBiFjIpRa9mWLyD
-BAEObP5QQ0MBHgddirRw0IYfmPzKKyI6p7YhknuSrs17UNIW0hcAJOs8runDQweUb3VgJqS5Eljc
-RhwuQM9ZuyKDu50r+vvsH2Z7Qx2ksT7vQMaXFjvQzGEggn+h3YcQHpQryr9h8SVVuQsuqATR2j6/
-tMcTPRxvsb9GXYCYUhQQDzOxn0VVx+uRcT+Ax1DAipeNW5pl+cnSEn97fuTjnc3IiM9oiBob+FHN
-v9kbgch61HIpVNnZOCSJlz7YVi7eIn+nVsvremISyLaBkUER53AUhg4Vq+REK73UXGoz9M1MpUua
-8v1nA7z1yr45PheobxM+6B7TEORrHg5nqpZnpQI7tWq4zRpKww4Vx6+Qa6T9+eU7PhMqOhsGTuS0
-e9D3nZf3zfJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGIaTYGxHZxMaLEC7tMW858
-EQj9szdS6LKaaK4kVkF8i1qjuaIzcmqHYJ2ApA9aXSIWdIdT7HGEUOncEo2rlveKNRV14RZG3WX/
-YCtiQYQmvKSqfLXFQCFgcjIK1nIqjRKsc2OBORrKlVFOrR9y5RLgKVxQwMQvpmOA040DRmlACOhQ
-C61pHwVytRmosdLBpxZ2fouc2oyWaIEeIC0jmi1OmJ5Xmj+a8xaROuuuzxAGcQbfN4RNm5DUrESS
-pUjRfNIsxRBZRRXViKVNSW61CTkwzONK8tOnkIYe+NAY6MpUXJl1NtsRC033cH6KJ8IXFwMiZBKx
-Epdn+XBNJ8+cFA2QqI2mAIxOyfB29Ui9VUmjbZl4JlUIRd2pCoDHleme+JqIwNJtRpOJ4KIuEpVO
-DvPALDnptdeajzLE64i7WOr2mJW1Wx9+9Ob8VE+chjkhw5pFkbiSlqGl7q0GjF1CLwt4qKuhbLlt
-BWXNkfzEVzRkFN10CZUipJ8X00Kuxo+y+cx5ciwNoN7jOtopdS2JW6mZ3xJSDSUqkNrIWpnfyZG5
-CKCwYRaIXvrhp/TA/Q8NbmA0SzrxG2yrmPpO7IU3I84YPwjtYF17mJzeSiA9cUoYTiS5QOsaeNv8
-e70JpBWMdwOCKesaF8NlnYndBiFY4c6igLIS0E5MEfU/Bf8STsrsFH44VJmI8tRrKVOE+ucKFciy
-Qavg3Yb0j+4KUMrfYslakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eLkBTevUct
-IB8WJhu43qCBeTjBCM455SQm6KEH5FoNMKa+1Nbk3o5Pwmy4IOKxqiH4pi8VAcXOxMSjxAZGQD/g
-Ju5j4HxB1K1kYidGmaXx+A/BEwX9RfRsoaukmWbRizaAiBZSpgHWCfSVXX9iFOwMkZZHQlEWET87
-XLFBDLqB7B2MBZiR9KZCWyd380pogpVtfmogEkrE7EXuOHbC4UA0lFQ/o3xqTz3CpGEqVw54xRXB
-4eOg+OooilwW7vBkP4vZyOQr/ZBR42S68SWxMxw3YQ38oxgg/W8gWBfj43u3HFq8eDWCUNdmZ5VF
-2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2uXo98q1/FJS9xq6RjmATGFV4y9dY0
-2sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuX5/BRPbBCmiIsZ
-lwyS/0cvb+TxIa2wkGOQhRB3c5oLeTO9f78jyUNdTFPmqGstdIatWofiDufAbhPRuzUH+E51FI8r
-5pXHaQGVKI2bxOCqhBG/OLueHqA2NatnKjjbAdRGlAXSTP8ZxL61s3oTCm7sD3Tw6ibdnV/GE1+O
-bAu5QA2rQolSyuFO6UIxLEv8SuxcV/1vMIC0bzDz1Hqb5Kh22HoMomh7fsjjawVfCpZybuRweS7v
-7KCXM6vHRNv2lGzaaYCyvicCDckrQeZ1futB4JXsvAwo554f+MSWMVH1NDmAJudvKTWL7SX5K3KD
-dhc0wsdIU1O7Lor+3Wks07OQvZThW6H4vbi/8mKAym+C+7ISM9tBa/TQeBMyg6OQJKm2skFPbR2u
-ZoqB84qCmTv8fq2CIxYwVZ6l5hDukPYCWpeEAqL0nhFdI0c4XmvU7HYKufX9+5fTYBkxGzHZPtq8
-td5kIkZI6drXNcD/YJluJSSfNjmSiitP1FMb1JB5EpNCarxUFykzkk+FguA8wGQ9NuwavMJ3ZUDU
-E/htuYcmUu/Pz+o4/SAu85JG55ZXD6H6cFYTaio5DEHYPWmgAY1UfVqSOt1ZoF4IZa1syZOz46U/
-ZyD8r7l476NOBTQUlQZUXDx4BLgD0zSpc2tI9nGqifWnCfbPWjXsxKCzUQpvH1aUe3xxO0wyUOVi
-gmsz4tpGnwoa1wgWPkfbxk9T993rCTQBuVLeqlwNyiLApH0M0xZpHWhRDQQjJ5yGMvkG/8soB1ji
-Yy+vvexevVEOa8KzbQqvK5N1JYVYfMIhtQJfpz1hW5y9dBN2jXjdD6iIWWGT7T2T9pEUlvUuAB2J
-D6BAi8r2R4OmYNrq7cr+PRF0LMRPiOuKToBf5phBDzoTh6gcfE3lbzDTBcbnoxZ/fpVPz/nNMPO2
-fnMYI71JOtHDAcebpkG3q3YW2MIuUtWcVLGaG3azcCH29NjMBNXaIqEdjXi5iTNPJK54VZ3aX3zx
-3+YKhIfFkc0RlPMMlSn74McdFcTqi1KVMbAw0b/sat5p5yd/aokpgHOhcH3Oxm6Hc1f1CX8KjSeR
-oSkl2muwiIwx7VdmdSIwkLbRDkEgX+FbzrN+s8Kgg9VkaHksIKNXPnqRTy+xlP0nzLfX8oGTE+Lh
-NauUg+8VFwuIQjIgAYmso8JI3PUqUIE0a4KVrOPkKBBLCDzUPwjihxOC2+QVMtapWAX7oblFqkht
-XZ5bsKDPf59TK4eFD/crxXcKEItcviLDNyG2MpDQiFsBdLpr5J1xV8Aa/vxPhkL82Zqza3zAD+eU
-1kPdWAIfqRia4sb0moAupwmUF0RRH335B4PheEUZjjxbWj7FkbQJUIgm6+1owmzbtsH8EpS42zVJ
-uj0/1KlvRZ7GLYgkM9f8Yl7gmFS9TinfKIqW3iFnYX7Uzc5ciVXz37IMnAglG3OJiBtiqcecJZ0+
-hhP7LqvBTtoteNELgmP/EFCl2hYtjJ/z0zq1Myj4AVMEsUQfa3H9KQ3E8VSnfYamVuZEExS5KsIo
-jOQ+WPlYx3OjZKKyKbj4KGcs59arkpXU4KpnRnW1C7zyLjerS+By+l6swm5lYidGM9FexkIB35cZ
-cna4D/tWEXAcp8Wu9YJ+6aeWcI+9E/QdqZ1ukenzVpLO4/1BdV3CPIc8QobtujjLoagD2hdyiO30
-2R8LaRqpu8n9p/Of6+QoOB1yjKln0Pc8nJUgdPowodAEqg0VVrXzq4/AONd8lU6s3ZwL0WzhhUDh
-ef7zN4GWkj0MKRNsfdaN3a0keTNsAubvpZr2+le59JJf754WW5BKk4xiPV2exbQUPalCP+BdgMoY
-GXsq/wwz450+1VQXeBSohCUCOpfHMq+UBQQnsqnjjZcrKOnW6MdQYVYzBzgGJDWRb7Zymo+/FnFd
-w4KThyUp5rIpWHYFLJzOAtOXlO2VMUXetdj2Sv/u6A6tQjRwLzeI7rK5iO5mCuYHEEiMOkaTb9I4
-fZlmuFmlR2tWWEcT0hWJZ7gh8k6WcTBfHCrUfiuhFSEjSuUYPqa5UGziJnh3jZ5ReJ+STsyGCUzo
-cPsBBgXxbSA5XMW9UtpxZiKH0499rFx3bQF0L6otgHRw5Tn8qF2Wq72yU/OcwwbPciIIXcfD3yDh
-uTOTfkEwVQl4mbBSgis11NL33v9cJ7PPFhczNzOh8XAYEYn4Vp1reVDDTNdS+pcMoPH+/Nmac+2D
-K4Wy52wZMvfDrfm/h4NUYVZXTa1/b+EJF7lwp4f7VDS2uSTbuN6Q4ED8wrNhZU8elRjmUSEcUdtV
-Z9GgxTcET4hi76B/H9pLKzCv0m4j556T6JE7Td/OT3A5FAVkkQ4ERjmUXWFBL4JHiLbEBDwUZrA+
-+B9RPPGctk+7DwKa6xsz9QCUcZu65wdd7pDXQenz09eUSTGW9b0I5SGtz4fARsMjvoMjkGwmczRX
-Rlnezr9HMcl5FWU211ucNxrRPpLATC2A6tQDLBHmeixKSg7c8jXQxInBZsMQuGh0vbHJWET9Ks+x
-KtNmRGLgMVZfmJ+40Lgxh8Z758ZnXgdDLTa+pnueMZUMBT+xh8iQejsEVt6bss2jUP7BH4PiGpFk
-ERfbVgpA36PQSJDRdj2dYxpuk7F9706gQwsTgjhFyYkiyeH5gnUwRZoOQdELi4JXbB2gspi8N/LS
-/jkYZXGKeZCgCzDweEQU1LPRznoUY+nx/EyONwDlCORZTaRdKCoZi68yJEIj+xNyahgX6T+lAU2H
-BJLurC1hrNklvW7dt2GJBIPBKBHQMqHJtHSp69FJUMeOVhaddJRkyBkFCNtGfVUJafkRAG6+bfS2
-3SMAKztDGMkXKOUmK7Hx6BTzRsb3RALBZc48zsWM0xKV9TQwvlkhLIASqUVn0OO1bOrkIKA8WFPa
-Nrq4HATpF6SE/cd4LFNro5SKdpnhV2ft3vX1ZlSMykOIPgoD4YGyiBVtkgxWoA+9jSFeAHq5ML+g
-nQKNVI2ClTfeYka/hyLLxa6VPjaWhodbXvGMMM5Ibm09hQBeM0G3TQTpfUHidRT6P6+TwQZziUaY
-8hwpqSyAbRNgxVHBir5SxGmta7eE8P0ehhbDbMDHc1VbrBvaOR1NNAEofadV+2goxyuU5NqPWutr
-u4AHM+yuQYOMCYerjzFSgSzd+hca2i0On3TtoC8O4euvo9MPmI8gCfFRPdLMZGT0kIvIxyGxazVO
-PgxIGmxD+G0rptyv2LA3Z/B1LKByMhuHBj658eF3VNUU+eeR7xhE1X0LwQf5LGU3efEe2eK9llff
-27D/3kpY6Kje50xrvw20oUeyvrKJL9CmX6tTzLFy8QtxkZtc6JYMlG6JGIJmATPXRCZflCpLeUnR
-gI0vs5pW5y36mVm8jcMplT+hCxc+TyGK1CuIpROLP1vZisCVAE0gwHe4IF41yS0SoJ0NPAwdXz3P
-XTDEhVsGUeKeP64nztDBUPOv8uaNVUqjHIzztgsaXbiI2RBXJKPt+08qo1icUdBs8114OEoFtdXL
-Es5QO/nBVrYGYVvI6E39g7nwrJLoA9KJ0Bf7yMJpIUF+jX2UR9F3mNH1R6ET9E/nRzm1OYB7cCSo
-j9DAXUQdUBd+0aUwq+NQinbYtgYGrBDJ3/iq31yJBcoOclsUl0oXdV/ePzR3FMgyAB/HBwV6dSb1
-KfRCheLc9SBp/RPeCMIFdG/tNkVZDvk0Xb8l9q/hA4+3CeB53ltAlkimCQmHH1Do6e8IVYSGh6mW
-11Gc5fvAqtdaLsdLa9IG5NOJpsgDb1mvD8Sy08UiHW2oeZ9EXXvqVPPem/TLDhUXdFubvaFW78O2
-EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYME3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6OH855x3ymGY
-MSXuLUANtF/A1SyGBkEDoSxmaFMHlK0MXrTJi6Dc4HcE4aGp1ioPJ5aX8VRaIeCSAbAudu4oTZ7q
-y2jiIIQcO0OW63srbQV3KOJiD+HzHsG/Yo8m8ZoP4HE8m/uCYJWAl7J7lhXzAM9BCNLoLCJsJDix
-mAturNbWtkBnayWenRyKdztkUDQNubUPNypyQr2RCmjlZAn9eSdA4yC+CYsOnbRmFvw4/wWPjgXW
-e4AqdJVdO/fsF5e2MEChNjWIGNqAhIdQIXNVxPinnR/laJ/MgHWGIIACVuRxeTgnywN3NiFFhV5e
-atabsQ+izE30QPsJRcxEEq2I1uyGj5ZxMeRiGZUEHqCJsYED47NwJTV+iQypcdMy6VYmd7SEr2h8
-oA4kWPSv9cXVEExjIKKMhKToWLYXSJakDhShbGVbHI9CaYNuPL1OblUk3A+XEHHRLjJKyMpWXGub
-MugmhJv0aSX3nf+Wtwea9IWDxdFik8smgqSHo0DQkrB+AvHSep74abA6vJP89mJUjM7Gh2j41OVr
-HaKjIVkx3i4zensGby+ffYlkKINSw6cI60pyB2TMNcfKG+FWQmDpxjKbWbZubDbnd+T8+Q8mytuM
-TG2GHzIomMvDiSZD33ZijB9Usw3t1uk3+U65lt1gZZhlM5OYcTjO4tohYWz1MmGcwv3+kLlYcNg/
-L2+fzk/m9UlybjbK4WwGvQ4gADKKvANYYGPpsZE+ovbiYoPiaBu6b/aHyr5ERd8ev54fe/n+PJrh
-vHHf5F+8oBO1mp21hL3q9A5YePvZuDYu33u1LldyPvBvxhmSDFmIjHHUO29Xwq5/ANd86a18sOUN
-sxxlccPAyo8SYZ7NtMUixEE/0MmcYuUsHz2VlqPMZ+LNXJSwktRo/l7X5eZH7Ny/aLunh89rBpqv
-Hr/ntsUi7IJnTkYpZJhyA/zUQYbAfkBz82ZyjC/IeF6s7IR5L58bbhFyLYwrCR8M1zs/0H61nzP7
-8pfz+WFlmBMB4+3RXb7P0zqrDRRB51khhOVQL3KwDnJMV3efdo+1+wXJoLUPthIuljyoxlQKK5jH
-7FzedhywcPN1sp+/fAzs29p94llgo7m5crGsfb8lxl5Bq0NO5u83Oj+mrbjDGGtTb4OP4YVnJ7vW
-XlnY+a4/8/3kRRSJVaiUsAznSQZOyn9UG+FPB422leWcj+q5gRYhQxVwJApoXtpShsJ358GIyKv2
-souNtTmt7ZVF0DCNqDaz+aCZ2rfW24dIJhcynmdZjCLJWs/5tdR2bl6L4BGZgqyhO/Z7AZMb7Bpc
-Y4sVnPMldEP3F9x7ArFo/1qb5Wv6eW7gRTzp/RRLgZKBlc/yZf2QfywvlR/eLRVH1LeLp/E+uwxv
-lFvtfmXHrC3vIsD4zRDq+bxjFPYMAgzsz25Plud4tuEUm2zju6ZjOmvQ7aN6yyJ+yotIM8pZnNTz
-waAHuQ33knufOpP94tkFy5tvZXv1Hj8VAOgJAuafSXPwbA4jdh2baSbOWxYv4o3E+VBci8xBdawP
-qYOT3119i7D1rtqpV9bFyiqfiqtvx16sMrIyY0KPhFzF7Tf6Q7INtv12dONtfSHv18pmpz4pLQX6
-FuDq6IsvHgQRetXRWBW1XSECL0qQcFGpUseXNqvcaLo7P7VlICDtp/RJvUNRAPuDWzhcVb0JZS9I
-1MkRlEbZIpOEuLJUhVitjdNKzJljytsjwlAgPOn1Q0UyDeSxDodKTFkf5A4DLQ+y+ofcyjJwwUqy
-EkOXqzePotLE4jUwk2aXpRUVs2psIVE9aiDn3qA9aVxWXVI74iinN1GRpl9gNEm3715Fijg8q0ja
-6YPq8/55k03k6CVUdYFlI76TxQZ5VmKq2qR3qNYna3tx+ZJjgrzhqN0AyNdgYS3OAaY81WQZwugY
-WZdZDhIY9Rc04JBSqrRcie8TqWvQfU0N5GspbteCjURieptEo/egNVmToyPQdd1FmeryHYCSEquh
-KixMuxCxTzq/LkfJN21X2mO6RLUJaBjtq8OFUfHSyBrDwMtS6jqsR4TEH4mGSNcG7lBj94oatNYN
-0Raj0+6povn47NeWb7oSDcJpGxWKvkZ0X+aX86+ksD/ocKH4ip3R4a8koNUUYhY/ODgtxOgNK7KN
-J0X6SO0fTYK+6MzLsZC5dsNuWEltjw+bwkcDoUZJmCK9sridEHQV+hGWiFM15vcS/MaXBg2iG4Q3
-14CiJ0aaGTU6nXiqCsB5Difp17PznSVPqOpFOmgKOE9uPkaIhtKqejn/kY/PNVVMyl6oB8DZEJdd
-ed8QhzRH0coxUMTZNNWAz1Ppr3RQjh45fDbIlQqoTHrIXAHzjN8cMZ/+hBJNbed4QuDZA8aidpT6
-is2GSi/Ddso3RuIlG1mM1Gsa+smLlo7SSgQ7Pnr8DkBvZtYSSLNlsW2cut7PS06XiaSzvvFzT/is
-xiKwQKtBEucCFWMUXd69unMcg+gD2keiWH8471QLUiVPPPj2dY4QzqjG2zQ1lP37RwHfPPcLgB1A
-mD0cxe872lNj1KH2gq0ngkiIDeOp/e71U0WFiUgU1mhXvn7jN98wHpXYaMCGOGFfZNeJWktuKCBC
-0yMi6qbt4G3fO6sZtgGokiYIO0dd7Bl5FOsES1pk4qfQv4xyYbrwsGZZeSQcBxRT1qBuMim6bke4
-Q8i/dPVGs3awic1cUUQGJ0GrfS+amgBoQ+sRiB3q7sIT6r9RWf/1PPwf/yW//X171v/+b/75OUfz
-aUaOLf7x39fhc8W3/9X89/xj//uvHf7Qv2+6l6ppq5c/rp+K+o9tm/18asI8W/7MwV/BSH//Ju5T
-83TwD5usCZvxrn2pxk8vdZs0r8PxO8//5v/rH/7x8vq33I/Fy7/+fPqZsjph3VThc/Pn33908fNf
-f7Il517Pf70d4e8//viU8pOfXyo/LAhav/+6Nz/z8lQ3//pTUPS/qOOCkqNQD/QAnMuff/Qvv//I
-/EsmHJMrUO+FUTAjRbK8agJ+zPoLmgFqbJwIwijQH7YPZ+z1zyTpL42oKtNioJwKsFr7839+v4Ov
-9p+v+EfWprd5iIHZv/6cT9ebzIib8QARscz4/hEiYm2MRbntH2I7fhN1lnOZUWAm6AvwREv841wH
-M6YxogQWJ9mswW7lKnCmTPiZ5Wb6va0KEUGs1K8eVSPU4aeIPRDaZJAbxKL9QMIUEcEpYY+uappf
-R7QWhctaR29Xxs4usrUqiX9ZFj3HT0TcctwMECU+9VmnoNUdI4uZPUb9ZPoXkBXlybX8Mi+v+hjT
-ZCezUAj17VATEMYSQhNZncJEtNTJSy3+CtTVRN1OqlJtByqptvZ9IGI0wO+Cr3gp5GXroG0Jl56U
-rBnwO9eUZC8paVPZ+FhF7UbFb3QCwzepqCdWkH5agH+IAMSNdg/stMCduZIGXkcYlMkfOtYOCTRs
-AX+KPvLdgG2rflP1VXgXgU1EKQFwIqZehtRWzuirwlcQ4t7kjP3UlXszMLPpMtNRFUBZL8V/OIhR
-zkNYqe4GG4/ekrlb/TRedGHUf8utPhycMjOFzxh9RxeyhnDU3MKxrpEX00unl0CYYV5nphddETfI
-0yq18iAVRYUsFxS1fJN1NUq3Y+AnT3qtb2jRjl8DM8fPubBCJD6H/Ekq/OZeQgbbRypeHD7XGA4m
-uwjPjnxTZXqFOuKo6uIG7SEZyjni2zhnGkLwEQP0DiZLlydf1LFBHNcUM2M3pQj4oDc49mjyln5/
-peCBjgllELY8v8QWRVwzbXJ8Kg3/ocG9yAeDVWGLaaaq8nXAMRsJYjLgz4jxeg+eEkV4R6Mc2btj
-qOVXnT8LxJeNMl0qqDx/LVILPb9oqFXoRapoPSsVWs92nTZJtMv6ZLpT+wkeStXjLzN7J2sBApGq
-F7qKNEqJU5PAfK5ToX3yWwkpDWmQkOzU2079NemWh1wrqNzEVswef7coxeUeBbha2Ep1m85WOGkT
-XMHJCW0PAgpuU+SId71m1qXdSaH+cURjvLIFcfLVD145ZZg1T6hqO0MrtM+h2Qfh78Tj/98tb+4J
-gL9zZfjM3UJL7+kPh0sNcCk9gf9cMX//6N9XjGr+NTNsjBlrDvOVu+R/rxhN+YtMHzoeafh8w8wt
-0/+5YmTtLwxgkFmCsktOC6PrP1eMbP01d5lo2M2XA1mT/J4rZk513oZlHaICl58pmtxXXF2LV6OK
-untdt23qZtB3nQgTx3u9b5T9pOTd85sV+vt2O3ebvQ5lQS0BjYZEwfKB1RD2GjUgWPAcNJxO6jQn
-mayf/2QQLhp6fjyFrUVqxwPONw3ot26AbNomQOjXxUVuWmnsk5QerRuIE4A8LB4YmqNnh2DFYiIX
-SAGbmS98GI0ROxns9caPOFcXxjUC6HhxFJnYpo6CJK/pTr2HBp7QDE31QWysmWZaef30E4iA6OEy
-K1Q0x50GjVvBllPFoFeJdXiK1RVoesvBdC7aobVuhttw9IbMxaMLrURBFDTEFNVBMFAb90riCM5A
-o1toifQi+77ymIV99zPxFewDsVnHT63UvUjB7iudaEb5aeO78oAHxR4MBoLxjawKvypQQdd5K/HG
-xq42xA9CjtoXSA0hCqZgFiKnpez1edBxT0AYU5O/ZGbuYQ0TJxEC2ICmnWHyqhDX4BSXhzzD49FN
-5ZbeUChG/le1lftZDLpHxB5JFbEmHGZy6IIj1xNnIqQhCCmqza8yVjF598xUzJ0JDcsHTY40VGoH
-XX5ueE9fKgJa3rz65OiJvx/n7U5qc+yQxLqiniwYIaowmhzIH3IfY1HRiJBFNgpDexIjHWnPSJaw
-dBk7k/djjrUMnMYYX1b+/2y6zvwOUjy0yuwKmdFhwOWzwYZJNSaE8EOzas19KOhDfDXWJQrXulHV
-aM7OpJY7iQtgcoJM177jBifQ/RuG6i5r5FDcl5rCOoudUCuOhmTjtVim1YMntz0SieYY3WMclP/I
-gpyLAMdtcYILgGQ9YsdJITltrQ3VB0nHzdxpFBRFPiBJA3l3MNToBetq7wvKb/098ucqzngIODUT
-Ey4wxKzR7R1tzLOrTwP69d95EUe3WjrVg92EevKAlnz5XUaVSHTkocIKhseL5/qFpD/EADiup8ho
-PmRpaEqoq2ftuPF8o73xNLym90XQmN+U0NJ/VBUavnZJlzh0Nfh4V1qkStdSrvMl2iKu7y0/iz93
-tWVc5FnagKcqtOqb5aPn7AYGvmn4dQnjXojx3+T3CKrvWk0RCSm2kavNahSUH3y27lPX41DAdi2q
-YIcVJzrHo6GitacJU/iU+9TdUCsF7ujUaYI1qT5FSscjDCVWR6vQBbWxmvYvaAy0FP9J/KHrotmV
-YNDUDnc8t7rRkeQkhxU0yUj2T1qDs5yQ9OlTLQ/FXZcb+s+4aLz9APGvs6tEF74NQfg9R8mUQwYf
-8atntNSx2lifBgDgOpwSOZQB3Y1tX98leMkkqOKr+JSYHq/RzeipKEfzxG6wrxF86YM+DOLNoLU4
-e0WYZGF8JuOyig1gUj3WplB7iG5E47MukJs4WQa7xw4xvsWgLRb8izoovWHTqiJGJEIkFN6mN/oC
-2f0yxGYD/USk6WeBYtnRGzN+6pt2gMWDtDosYgF5R1vrRuFiAnxDAi1l6V1ToK258XLj/7J3XsmW
-G0uWnUpNADRo8XsAHHW1vnl/YCkDgYBWAWA6PZSeWK/DV8+Mmawmi/XXZv1Hs2TmUQDCffv2vUCU
-riMqCqjYupRnu4tqIt8ns3zJIZT4MKMGYe1Mu4CmB5AA5p+OphrAukmrR5yz0+mkm8qCUcRQjNNB
-+Vo9dXPmJCWPoDAWFxLNbrC7xomncKVPX4Jc6LiVLbHhrbH5RHoXK5AKgBz5G7MBa0lCJR15ECFx
-pem2Wb59aArCQXaBS2olj7GVBO38cvurWZhA5WwZvsAhJ39b9tRK8A7pQdNG/Z5OaoPcgC+gGEr1
-xhJ887Imr669ehJPVZ7N7y1EtbugGhw/7beswRsX1flh3WxANp0aIzfGN1EEJItpWcRb2djvDsyl
-+n+S9W34U04y2mS/XmiMh/9m3jeIIvscGrMCV/jP877LEhCrB26OWzm37Ns2vCRdI3NE5DpLs10O
-0WAEP0J3LdSu1mD6di2RhUZSFn05gdNx8nsq+mpJrHZuHy/fyIwTzcuug9m23pma9EsKs1qCai3r
-uoqzpWhv+c8IfLXQ9vOi7OVVy3pa0tJyxmC3BXP0ricr/Ni4iq/LtqVNu9QudWIM3UJwAohsSbLa
-or+MTbXpuFt8ya99IS7HRs+ts8uDsvyaudywZNG69nmyq43TLwQhtPPnaQCk2xP6HY+b19x7Q2vd
-hiFHdFqygf0eFr75qRp6bMtuaOpmF4AGOAeEcGMpDKfLgi4i79dhNqYurbJl/Sx5KeBYGJzeutUq
-IFBFonrvrbnyCdJos2fHsNeXqpXGse9oHnb5xpSXfT2DrHXlmwtQNu6qh7Z06y911BKW39AvwrmF
-6rJzi8BsdwpozK3OJ8dKFH6ah40wtOcq0yUpzZCLPtVzR/b5MDprIu3J3btw5U+eCeHHyOEC7sw+
-6JhJWEa/x/5FCvKW15VLHpJh19Dip9onncXPbnDYsyRWUdY9ATZTz0YxEz4yB+P8phcpPrsMWBWn
-uLl9v4zFux2sUq8DVTEqZLyxknB0VjDnEDB09dSz8EB37FbrNQsD210HsPmJs6p06PC89kTIFIxg
-RElIQJLImgL5vbbfA+l51k6V+fCJNRH96tqNBVitDL3z4MHxgc4Lh7QPKLfiGaeeJj96auA2hb31
-kgF3/Eb++TgfK3QCkVZy3R5qczDv6yaD0G50Vfjoe7XxdfArUcZgE5ivhU7X8jWRqnLdlF7IlTqC
-gOD68ThfYZqRpyOXqfB3buNC5RB++RYpPucSTRdcn9u/bY6a022gy805Qq710Kk7j6CIOnY4np4W
-QSZ0vPDtuIlYlulqowtd2WKfIf1xqsCZX5oc7raKXspcOm8ShlC4r/rKfqqswbaTbg7AhmuAyK9F
-YTu3feHloP0CW+VXbMBO8H8i4pjiWkouCyWb9bUIdWTvWkca1/2ibdCws3Tg7MGavR+IWYeZbZti
-Tg3X7/y0der+IQvM7NvaWNzIKwtHn5XjL1fgceDmRkB5wt02G1jFANXM/s7zoP5wJPX5D3tj5rHL
-jK37EkHAIZtD9c0Lx3aN614V2V6Zs3VaKhu2W+0K72Yu+u4OSE/x5LV2AFKAGPPTVoGA23VB3jxB
-XelfOxF4tPlW+FQ5fF5Cywln3ato9L8uRNgg2AyBuHN8Z8gSNufMMwdsyFXBY5wrqFp9aqsxlG+1
-1qER512tfzAIXO6jYgLzlkdjfx0G7US5W3TZnGiy2/TfiNB/6rwQCSMW4T08dqjr/i+eDriloAXc
-Asy2MrqH0mijhKpVH2Cn+G9/3RT9PkD6qctj9x19M0B9IUfA/zUfhezcHqR11SUFaM5nUASNwVjP
-yD660IBNMARrzk+nV3SI0nU7uQfssv6o1i5yUuXZ7asVjCZRg4NqrSs4ajDpBLGdxs6tTetqWXTz
-TMpDaCb8rvb3qZ83P2GZpD2N0gpuEbmLH7gnhweWl9cPz9MrWJjFa/BvNSr6vEzO8mFJ7UOWapfw
-Yazs/Nnv3e0L8kr1pB17AJ2j6Y/+v5TxJ5mcZYKLJ+ovpIz//b+a/7j/PJXNzzLG73/t3zKG+xt7
-V5iEGZgwJsVM+0cZg8QZZl6XtVQq8Yux/t8yhhX9Rq/HhvJlj5+/fLku/62UI3FcFlAQ0LHnouQj
-f/wDpRzd5NeG/JLGgXDA6gTrfSgu/PkfZkiz6yh/klGe1Iy1w7jndFlSDaL0u1qn8GXUjvogOByM
-tlc0JEkNYFUBWVnDEgdhob+GxTK5V9EsFMZaiLI3dTDkH6oFvLGb7Si7CQU5kofebocGLpE7d0+2
-F0yIddmq3yUp0Q9uvun5oXCsMjpPbHuV9wLij3ndtTxWElWpDE4AkRgfqArqjn0Wt91TH4Hh7Owy
-V0EMn8OavuiyNK9M6vEro5paiL+18N+KaFpu58pz9ty21prwWanibYiqJPBMzkrtsjTTh+zt3IxH
-O5o/mYUp67gE7xPuhO6W+9nWvr+DzVJ849ws+3PUj1F7qwG9gV80Lf1R1B15aLRevXtdRR1S9SaW
-GTpvGKzvPqUV5VqEjr9rxmzG0ENwZ0etQAp5LHLsXEDjKue7aPv1OmwKVg2toMi8HTtHkGDwJ5tj
-Wm/NBf43FODzaO8uHO0G92hsgPHeWOGxp2upBFFKhPGCN+oWePOZb0dor+YFeGKC9flaq2h6GodC
-/hinSZ9pX4s35VIuxFbrA3IWynRvydLpb1DghofBE2wxT2yJXY1TJ4dkyyQs1CwcVRQDANEXqI1l
-fcrswr8VtdOXu0s2wHes+SOlh5ScFmFA1kCytlQj8RJV0bN2VhEdCB+K7tehbAVM4zLMd9KO6Ktk
-ZdaXrN/NaPfsTFtfzbYIHrlQmglSSiBuoWnzNbZq3XpAM/DEdhBErPIGRYsxaKVm4BdMp0B3CIdw
-sjSk9flQJNdnuxFswr6nTuqgPkb1V+YATXaIVN585S6rvszRCE6rNexx3nXuWr7KDlbrLmpsIFOW
-BQ9rHqEoqHErb1rGk0tc+RIdvGoLqFf1Ivh5jL663wjy9ROS0AeGlV1e7pdQ00o2TQhyuZMFH5AC
-n4Vjzp7oRxDq5TMCgIPbuDDN935DKyon4tlj6Y7sPReOpot3On59yoAtxFxhtRWq00bx4kDLyACz
-KCC3RTbQ6ro0ac8U7aBJ6Ay5vgJ5aTKCxYQPMXoO6+EFhTGDjZCGVWwurvvGF0RdwIkOH1bgNyVk
-58y4hv9MOUQct3qWk1HQYfeGUaVCICzsAswDZqLEtjxCmwmfDSeffpBRRJ+8TMq7VrajZVL3koq7
-GXVA8941/tfZWlS+Y/YQfIR9PeDerp2FNG4zap9E0BSvllHTeY2LOVpsMpsyS4ppq9/AQg75vrKg
-uiYml24OH6EIXJ4KxhClNA3rtRijmhaj2fTLbLjFpbwsJet55mbNB0lUIghidhFUTFkcAAw3i5E7
-JHS3Bd+kWUZxC1HkzFdrJo2rxY0J3fBuogl5zKxD6N26zeQtSTNkzuPoB3mZbL7Npcich0hSXCPF
-vtaE8cxqItsrZOwPnd3IXDcdLW/4CKCIBecATskDdBD5zdclwK28kKtJMBYIoH0tBG2EXQvrR0uk
-75gQ/2Ck5PYDsnTZ6+/hjo7d/Sx9r9mBCnXzHcP69mT0jfaAWS5q2Iu5XJ4HLYoKUE4WvJtSm8HV
-0EYwfHpHRJ/qDXgeSgJ0nJRBIT2GGvT8LHgQIg1EEOdgqK/ko7s5YdiX8p3/RTAGfNRqYCefC9mb
-90bo5A+g5NezZiuTDDeSneq0dTewqGXlV9dZAwPwlJWBa1EIjiVLm62IAN7W3YqTyrKec8ua+91Q
-1goGrDU6T/AxRctPvgawCiPkULsp1kcR+dX3xW95jFl5bxzGMdvSkNSBs9IXDGMDXBCw3xCWUbp4
-Fawl2dK41AIkJmrMPOl0rX33i4ZcDaTbNlR/aXUbhj0YUgJgwSawC1cNNYpoIOEdyZLrGhyD7K8g
-xBF24PR9AyaUmWCQBMsGJ5UFVd4fFgi3ia1tFCe/udi9NGs5351gEv6VGMCcJ1k5QGAbB5HbWFsg
-DF/jSIEEooir+gRrbVvSeVlpTHOKPwcUniClugHN8bEt0oQQaTJwZPHGA0YnulU/ycqfc0Zntfnc
-EQ0KetUx1+hYUug3TPvI8EsD2YKlY/pYlgQITsUMUzivIWd6rrwaUCaWXYNIxWLkoKYodp3M/mSG
-jdEdPbcnkNipO1eczKBanVj7mX4OxQUA5Qp4gCT2Lb5Luz7boDnCme8/kC6oUjFVy5dNbcQAi3Di
-MjGryX0BLzJVB9FMyxcx1H51HKS3bEdzGnlYuWHBVYa4nLXPbkYVnTo8GcFzzjSJoSMmP/GXLvrQ
-AWzx/eRGSlMYB5l5ABY3ZjuWD6Nr2itBliaHoUprM2uH/cLW9MLRtBXmjvaQeF3OhVUeoc3lPK7M
-VS4JtUvbxuHAWwy9WnwTU6SbvXZXrgckVN5+uKlVHhQybhUP07Ba/Co9t4PSPW+9ASpLYxZGmw9H
-y/EIJYryGah56S3rtQoYcCQzc+Mn9lzx8BIH3sUFRqZ139iA22MgcYSBAjvW35UX1LegcLstdYZ6
-ebR5UoLvHovMPkQ549njVtRuF4umdrqj7nQR3omtnv1Ur+HlnxpbgGtqzfnm864MjeOs5x5/u4Xp
-7ywLipqTpY0Gd73OTJ9IvJADhH18oA6dRs2NYczXw2nqDb5IgrCb2NdCV2k2WdaPjK6/iyE/sxlc
-bHMtjoWUlofQZKxzOqzCbNKu9pu3IV/QOmFQG9fm4JhGPDgbBUCgxdrQhUtws8ra5jca0Cw7wY3m
-WlqxtUK6mrH1kTczYsCifVq+oAF33UEUgylOGnyXoKCp3fzWdHS/XAl4aO4ZVjKXMcuL4fYwRIMs
-T40FWPXday6Iam10zzr3Tbhag56yg8KAdXLU72+i4VY6NaUpuVEIcPG5OmQLm25YAidZkUGiY9uZ
-zAZo8K2XOlpsdeYK9NmMhgEMyKHNQjsFReB/EE5QfFPTWFeJ1pXqDsUUQPGqUXqcvTBK51O4gIdP
-HPCbt8bi1JfTy6wO9WjwEWqAzo94UrMIuO7Ip0FIN8ncncb2LQOaOiJDcC1Se4G8TRtewQWNaoOv
-h07egVs17E9i08uXgjA2Lml35fnd40wUycbMzQcE6XKR9nXHHVeAUO25+JmqwzU2ucDFsvH/G4vH
-lRQ0xMgk26S7J7WFVR/XhW9QndaW+8L3CtxYlc6Wwp+sz42uAvpdayneS1R40o+8zmTVDH7PCL0n
-dN4K5lT+DoIVj7JsQGjYSdkIRKJVu6cQQ6MVM4XY7N3I4i+c2jmgoJyHfnwMaKB4iE5ZRIXqNN+i
-LhRraoyj+xiafYcYU09UiLZYlx9NoNYgycgI7uIs6gxGFoEovxNFS3Am7Udv7otO519xWzDRrIux
-k2kJTyEpS+B8KdzBClVzG4YfJFoZDdJhifzkLwXxgFHY33QuBHuAef52Lwrtv24bdLpdh9kZZn2g
-rZcuN+3uyC/u2ru1dsf9qhkDpgbDSJn0yvE+ZeEKfjjorCo2x4lDyue7nVJpAa4l08nor3jat8hi
-+SCeDRn448PSYW5LnXWqkVKZszv7cew9fzfPRf3FCS9AaTEPH1zP+acNvdSLCyMyRSwwoxB3SfL1
-xFdpuMEuqGW+JJDi8Nt0egqJGbVa3slmURl02YXaRlAnEy7m6O5n2HikxnFrZt8AOkYq1iDJHtaw
-ca5F5+VbbJdhOR+onTqHGkqoYj/mjekeNZT5m37Op3o/K3P8FjhlE6VaKNclLNs2DQoIvOHxXGhw
-8htrlx+GtN1H2rXVTqqg29jkdoG/HlRzuSaImPbq1GGqAGUVbQNiZU90XjoVbnEVdCEipevP+mux
-AB8eSiM39mOwOXQk2HxAoLacl7ve1L2fqtAcPvrq8jB0tTs99jpvwsMf2v3/Yi7/e5DTT+oQ7TlW
-tovF02ML/9eZuTHnijEvzuuNwCLu4bpZ/Z2eQ3XjlKr4yKete8tZWP/meBmkaaKIXIbT5oSECcnZ
-oBAbqwBYecYzIpF973756zf4q0WNpgesCPCzS8qR+afQHmd1OyzskUCGy8XNSF5JUkfu+jd2zYvB
-42crBC/jEAeIeZ79ACLtf1YQpqIqgbrPeRIta1hd9VIVQeJAImeK1SllxsS1VPrSbc9ftnHxXprF
-ZmCIR7V+brxRf5Yohn8XJ3550V9+G54XDgEmlM+kxV1Mpn+QNWDLsfeVCZn4/dcqm4otaYkzO46u
-BGu0Vf/0m/5935fAm/ACUiLV7+dX4zETuAaQrdjrRnE04RdxkP5t/ssvxlhs/7hvSUUw+UlRa36N
-YphK6c9Vww0l5CpYSeB2uyu6JUqZphscyGgQVd3We8fexN8sZPy+t/LT98lrE9+BuEIQI4EFv6iu
-UdGYmSoqh333pX6vusyB903Zv+O2vFgGGG7YO4eOPkSeB7Yct62orVSjXOdcf2CZD3XJef7U6s26
-7rx1+9qOyv9mOEDpwEV7NDiW3rI3vImFnfz1jfAnyZg3zy2KlotXGvPgLxcDWQelDRnejsklp7vG
-z8ihcFmam7b+n7/UxeX6r3hlYvV+uRna0sx7RXY5D/YZ0nMHTHtxIJuqqOv/5sa7XFS//CQeoVFo
-i5cke4Jxfr7oCoXXcZk0n2owm6s8q9uDkW1M/41APGL3hKCupyIuqsW51o73d1H6f7rDLjCTi42e
-1H4uyeAXAyyBcNE4YnagXhXhwdhGm6dzz5luGg4CSmM+/PWP+Ken2WWlCk84e1Wk3fjWL46rViyk
-sTPq5zhS7hEz7Jx2EuruX7/Knz/Vz6/yy6WiCNowOuVkcWtgthI4NePyUt1aefQwz473LyX9J7/5
-H71dvy+8/vwjks152RIgWA+V51dGn1ebDDJDXyTj6shbr1y8h3ZtqHiD2rDRzxgc2MsXy89UdsyV
-ZR143EZVojokQ8TabXjjvKRRoCkpSW9calkm0zDZDWR7nDlgJVt7jLlioW13/Wg9L8s2PJvSzz4k
-cTp/l+34X/1IiNImERvk3BK9/PM1mbcGgg59dox92P+UK/nODqd6/Ovf6M8v4l4SuUwueWazRPn+
-/CJls5a5TzZOvJYO6FmzQUBd6vZfXrV/5Ne8a7/XT2P//fuIzf9Xb/9P2wH/D+8DkLjMkf5/H3Tc
-4NQc/uPwvf8shz+OOhiLXf7if446nOg3HgWc/yDUcIn8Ps/4z6UAz/rtUiNd+CSX5TVGF38Ydbi/
-wYXlVGOiB0MC0eUPow77t4gDHFQOFQaGQRCq/2DUYf3rifiHm40ijTOMf5FBh+ORMfTLw3leagSm
-2uWJyS7XfeiRmcie37zzhrW5tUv7A+fo3RrJPLWw92GpMfGjjHZsT+WxDibrc7fpCO+TFPs26Ml8
-EzMmdEOi7lYYFkNy9FNHFxlBu+4zW8SQbaumvuXxKa9FwZTeGUuFaaHAzXyJzzRFsDLQs0scfMOx
-mMR9N2RrymLZ3VxM7T4f10eEn8MQChSrPDSSdunfFNaadJ0F523d8/jtsVnJzhte2jXqr0e/zlLE
-BXlyC+Y59dK/dGE+XBlm7371vGxgBF4HccjLHpRBy7ACL/+Mx9R9ClWEaY6WYy9b75uX1/hXXHEw
-vdEnSMdfJr4W6KgWmzVHbkAVA778RPJie1qMsL8vpMC5U0Vs1S52eGhweNzCpLoTRlBdMGjWobyY
-pFwyPT9mwj0SS9GGOXNkCL5Ehjmtfhoo5ffjGhV3gzvYKEsk4OJWQFIIjClVm2wwS7gPi1F7CQce
-3sKLPu3RYD8WQ2Olg1/vV0zAO2afOkVSJsC2r50E5TEt3Co452F/O4dbkY5DuCbDtr1AczMwMdAG
-AkLqiWsZ6hOPxxmPR8vwvyi8x0aP5X7twonZgsKjYVpVuin9uI0WXDk3V2iSZX3G7XSa3cUl/LDd
-aIQAKrA7271ZGwvARseyIKkt2EaYCmyJ1RnuacJgk9hT9qUvJjNtmbI8hobxSj2fMnNa9ixoP1bt
-eo+sxta5NLCv4LrZTbn9Zo8TMQYlI6BwnRAb6jej9A88fd/crOC6ZlaxiwRDrW3uzwg5LKh6OMfy
-gSTDJSqzUwcAHFCLJmGuyAivH9u+fxaBu+1DSMxhNL45vMZzbrj90a9g0uPFuJ+MJdr1uEaeA1TL
-a0uPH5VaX4rFe22j4YfatgLT0Hxom+jWvxzZD95iTD+EGwz9acH3Eu3oRMc6HhqvXU6Q+ZYqnVis
-Cq6Kal0+VrcPUWGjrLl1SeYFxoZfV93NW1bdTWFZlCh6rgpfR6P1rSL2V1R7Zmi92yZLGRl3rceG
-2g4+AwsfhAlGW4xjiWWQusvWNs0zThO0bTTal1o5LB8gkXUBv4WVs0ey8vzab55WbTJLSy27VbCn
-dqPAsN7VTSvaWzwTUnqp2dltaCfYwlW3d6TMq7TSNeuE7D5Z8lvfuJliew1tGKJz1b7CmPYflgmS
-VJJvpOnHZmBAPPWrgkmM7Qv9Cf7wLM4Q6uStGN0gOEBV384Zmb5GcjE1o6BvsprgUDYdtxsYZ253
-5qLdaZr1SIyts9rhSWnXY2BqL9mzZWxRlvhrp7rUjUrz0UdqKbC+tjXbJG2H7JVbunb2Cvk1OlK9
-Bx7jKW3jpOrCZbvIvYPEdK67yYwIx80m7Clrjq4T2lM0Ho0aJ0ISVCwU722yerr9ljHlJgAD63HK
-BlDEEjJ6db4PEexkMqLJRfEYjGGw84DZvpnzOpBzlrXNFm9t7b2g2+CzGYoVIzIx2+uaiHLsOjr/
-DN3FCrYFOQ3b6qnJcxTc1ZfDGzERDEwKC/vVburD/GEOWPncRVbFWEmADxxPZaCiS+ZTG4631RCw
-Tz6IcRtvaJekcdtHtcRVbExivY/MIRyfDWjJQ2JUnn0EascP3NjerE4qqyMDS7CE11z2Rr/sbHfR
-n+0h2743g5s9Mj7hC2kiuUYpxFLW/f21X1knGnvH+4ow694zAyYd0DXWz67WXpb60pmdRJUbClLN
-2Rqx04L6d8BHNxNrHlSdvZeR23pHEXJoPGT2FKi0xRW6xs7iKYVUPkmMWsJbniZ/Ge96juz9bBvz
-sfS2K9PIiys19m3Knnr94InuVhbmcuhUqJNcB8sex2lzJ0Dbs3Vk6jss3tkOFRAD+4pTMJ5z/dkS
-xXbIfXm79L5xWKO82Q1yMK8BS5GHUS0n0+dmq7NyRI+GKb0sIjE7r066oR1uaMrW3WZNOAWDCX8M
-5nicZjYj+yg7tD2Jfo6yZKqWiT3/pnoqxfwgHKr8lvMz3mrpwwT2o57NNSXUS2+WyrjOBvdY2Tyi
-dTuSYIev0P9gvlYuB5RvbGl+e2bKgWk+2rxTI4xbr/O3K2WUh/7i2qYxE1l9w9zAvJlKdLw5+4y3
-3GFE3PzoW5CD+bTU+9yw7mXE6NYsgBwM2KmToPSdZBozngnNfXa5Qis2rzaUehzELCCsPK12M0il
-26ZrdLzm2T4z8Uuo1sFD570z+TTP6NI5p6N/k9XBcmzq1r9hGXtOWN7HWd/YR3ttUsOqjv5mOcde
-j8N3f/Ni25MqaVWpj7lsWNNiftlgZ+BoLtrgjTHDc2+Z42nlgkhcY6l29iCj3ej0XwaGPWPiLfOj
-xvOLJEKFtKYjzaLNSVUzNW7bPkvceeKJwUrOVaHX+jBNhnzyemC4WFU3I/hmDFYvznnBilbMOLP0
-3rrKxCSaV669HSDUrf7tLKzxyjaozfZBtJkS0pmeRdpXyvZQfFrRJNsK+ekhKlefOPEM7z+7X7Xm
-tJzNg4yaLW1yP5iv3M1k2S8Yt4L9vWZ8KoIMPs0s2ZrbVa7VfNdUX+0eWqPn3Y850IFkkquKkqHq
-2vqqgj5+bJbNB1iigrB2jjLfLOsMuZLBk1Z2CbhSRt23qqpyzbiUucFRY9biO51tbzxNQ5evh3bi
-HzqxjO+UrM7VyAefaiNnpTHK1WT1+6LoXZ7Qdldlpzw3vCDZsK8W51W1KxMEdNP+XNs4CBlvXAao
-Ye06+RUwGoWl0y8tQQnC/tPbFljcVw5xpXKIbTH4ww2wxqrfdY6sy3t/NfV0bw7TYmHwNowtS0Ot
-p8cJarCxY023fojMfttSzQ5497BS83y67Ay5d40frFtMQuiMQ5awCjL2mDEHuFERgA94DGWIhsR4
-Ou7zCStd5i8N1SEVVXvkXQwM6XId5ifflJ7aaUoDwrcDLYWZqsGqzgXjLqqGEXuCIaIxf6mqVSG2
-MaAqUe+xhT7aW//Jq1RwZJnqKFmMR0OKur1VboeNBcOjMV1qWhZEZRApyevhj5zl9Cxd1PXOtr4y
-l/6iJKRrtigls8ceuTFWyPVPk5vxNpl1p0XYvOjRPzPNSKnbksgYARk4LuKTubWHamiPLBG2HD2R
-eCkqrmCru7F89vKbCoOEN1RE3ZAutvPJZ/e5T/a+4UYn9+IMAFl0nrrmmV1cvLua66dmUjRlRmI1
-093Qe/qBL/gtL4p8tzjlnRmq89gxjAqYmnPkdWc0s+KYTd6JkujuMoD8xGNsufVGolRl/jQZ9X5y
-3NQrS2BSQ/1uFRabvEOT7RufHaZufC279n6IpmNu11/KsKkSr5ZPdu485CyFop91y4cU9aeQOxTg
-kTzjGeqOzNjPnsoTZ2nJoilakAR4onaG2r5YOrspO+9pdDNrRxbije46HRdB1F3LkNjnxrlURH70
-5nYmoUBN82ObxcjMxaJXGfmcgb4FlHs1W9EBrenGH4yHsipet2C4dVZs4GwVnP2s/NpOY7GvBmHs
-ZObkBydnequ75v3CmIsxoZi7bC0ZU+NM/zJP/dNkBo8WAZSxEPNN7kZHeqn9IKaracEejS+JeXkf
-XG/1QDHKcmqwjsgm1kPQOrQRur0vIu+BscaeAJ5XfKu4bewh4hbd+tghcnK3huM7R/XFgFVcT4ZF
-fBz6FaXueyPGfbd2HOJQBuOOZMpV69SZ27Ndj/pQGAPbt1H7LbO9/iB0+LnHpOXkHgaE6LyJ9TWk
-NcL1CzSvFd63JaIov8yKnV7HTrV9mcuIdRsS5Q6uLN8LmiHOlnYOr9zRfzNZMf5u+sZ8nbnyBXDA
-+IR4Gs+mu2MweuIxQNu6LKnosnNfrS+qMq/qDZQQjqh77QcHr/avB3o36ssUj/v8uk7T9dYu94rG
-6rYLgif3Yp+h/TV51LPyVfRLeJJTQdACBsUPXYbJ6hXto9vVzifP1a+ytoZkmG2GrY6kLRNlH3tV
-dp93TRv70WYk0aDsq8zGA7IOFj8PazBqL117vSde7l5lYRsLfCZXGCS+4uliWXzy9TWHTbu7zALT
-DTXqqUdPOvFv2CKOGJfuVpd7uJLFdyZ7IQOiuYEElXV4/6Npv01ePx7cyWntg55xkew4bafqTWUL
-0/ZBDYxUXT1ndy7QUjwy5kgVdUcXh40A07ecTrB++FtulptHyvSiTcbeyruDkvNQpLQ9LhsFjV0w
-gGaYy4AUD2Dp7JtwANZjDFg6+Ei9z2ZFtOIGcJTHn4bhdBm6Yp1/DqeCOatmzwPjzcUjYSOHFdcM
-94i/qdksf54XTBcs62l9PVek1SaIXPKqMDVvHfOQrFXMYRFu8YR3joKtX6OzgrtEwg1MNqatkdXy
-TFiLdJm9jWq2b/hUhvaRwQyt96aXY39yagJ2rz05DPnRpo+5yb2chifSFSW5IStKWqTy5luWtfN5
-orESmI98dWrbUTwoC7fcldEOzg9HON0z3lAgdIYvJorahTyOgXhiWMXmZ6/c3oXrFPdDN4Z8cU2U
-nxtbh/N+2Wy2huZuOI9hdk/U8+solytWXG8HY22rpB9t86YKlojlOOaD+44JSnXAY93v2Wq87R3j
-agkiGh8MpjsxzyQV40JNC/SYppd2jAq8L+eJPbN+Ym5snetlu3d1yZfQbbGT+9f20CRTx4lZOdMB
-FtirQxd4lQfbLZaIeOl1E/clyyCrUX1Gw16Pg8LwMIUFy2tDdds0mtrS69jFt+zXsRzWtNr8b5xD
-t4u7MBt1npb/w955ZTeOZN16Kj0B5II3jxeORqIoipJS0guWTAree8zmH8ud2P3Aqvo7S9Vdufr1
-rm5TlUYSSSAiEHHO3t829SjYYTSlqaQpgfAqWoV1DmZRDrAuxF3oZ21/R2UruCY5TWK1ENLxPizH
-VvGQJ2V3yIJSyU4S6qZ4nLIaX6xe6t31qkjfLCoyUKfE+sHnKccmvVL08iBGKEmSKOL8McjkA9Vl
-Kn+0YncjUwwK5NLtMPas7qLy0FmDj+voLZEJ8B1LFAajvDzTow83GLUkHL5GxMoo+zyM3nPKA2w9
-rBr935KwYpnyHcdHDv4AlXM7BOxxKIv5iWLSDxq/yH/x8r6qWrmPxaE8TROZWbh8xg2P56U4J2nN
-ls8ca0W/LVW0ltgP163X0M7CFUdyC1hAU/ElYmmUyBP0MXnl9MPVwQyj2GqssxULRRS6noiOhZUS
-wxGU/yxbNUx53hNtLpSmxz6U6a+GBhu6hFD1E89u8A0N+R3+uKi6v8TIntyAg3uGM1iZvxe5MpDs
-1bXNB9VynWf62JroRdJ8ZEKHKB2aQ1NneXvX9Mh2baMR4hagVjk0noUmCu1XS0LDe11YxtOM9Ac4
-nzoIHjkiI+3mOWffCpVr3WYqMCHRf6aN6GlDwpOiVYTxraJvLOyLbgYzToc5xm8KOoHgSoALRLaf
-ER12V9Kop7dqqxifcS3WBLSWxhaCh8ZevaOsV1Xie6lQj6PpRnM+z/rqwTCjkfT6+baa28HOQ7Hd
-GX3/Iy9pCo0MID/oJ0PaYwmqHXmsvKaUO2sfTeawbHU5bJRTMhP9zOw3eShQHEzxHmI1T/ajhYDD
-lci+Dq9a3ayqTceG9QPnD6SKXDTnz1oPE8ujd4k5qkvT0dogVe6Dm1Evi31C6wZPQ6EOMXo0aEu7
-lLgOVNI9MvIrgiw4sqQ1FWQ6mTw0YF+IcUIlpqLYFueKGe6rjNaYR2eGhTdsu+C45nXMTimWqiNq
-5vSE48J6iOZadNqgz5wuySUH2ep0k2HpfSR+561clGYnxjmVJWo8P9Rgzb0VQy15HQ0924DrzFBU
-jbr6MKSZhLlD1AS71jgzLEtvnZU0WrbMBMuiGsVru/TehtERi8iYrrtSiOiFJkoQ5gcjrSbp3CYG
-ikzWmKI+piNyva1yEaQNE4eXXSoHbfK6NIh5OA4ibODgWi+3GeLN6XVKynD1Y4Wzdq8NIlrNphER
-ejUXAR3IYKQgTUHuBJU7Q31AyFUUd2yCq+KkmHPcPCQzidK7LoCNBlX4ovej750s2OQNq/S6pRwK
-/HsAXNBZJrj+rk094BqMRc9+ATx7EW2LssQnnDdCmtzzUWSENRand18SU250b6lhdMrassEgjfb0
-OSD3WfDCRhSkT02q87eYe/PJcVvKnxDOoFJuo9JtlQx1dR6pKFr6MEHqhUsT42PYgVHxxosmU4vI
-cD0GWdG9qch/Rk9gxFCMJF79KkZMa/p1Hesjt27kedaFpVV7U5pWHOKgshFMuMpJA55A0i1bvQYr
-7KA016FgDYbPNKkFt0d8u1onRYylhqZa/FMtFgeWzKJ7wSpu5fSD1mpE5oPipZEYnsKsywuqsTr8
-QAIcWLYhEN27Z2ETUofS3MIK0QUsaq1VwJ0RkgyRGaEdLGVVoLfTjaVm0a6ntwlVNzPW83sfM5g7
-M0l0D1KCOLiUCivegKFM6cZgZt1gX8/C4wQ/kjmEwOyJmSm4wAcG/UnuI+MZa4F6xxrBLtCoBNb6
-2mD730VuDWSFZz3bTXob8dvQhJFndE1/s5T1cgiHWbnLtJjYUDqc/oiQ/cYclF3ddfLjrAekwMnt
-FmcUZlPqng948vQtOw62SUtcBTeJUqOybM2ecibK12ypi0MpDenWrJrXSKp6XxQJ8yw1M8B1qcw3
-+PEmOyhrSMNyoLMKhupNE8Tq3lQFyak0ZSeYy49cH3d1Psu2wWl6mXLRmWWrcme6lmaDa3vs2+xZ
-lwpadqzh2wnFpb1U3V1rNtuiNu9USnzvdD3vLSPbIweo7Iw9iduTanYuOvM6tCrkSkLo0EHcGFZC
-pHdseCEqdh9KBMwb0/wYisBCcz9IezSwAsavhICNMeZaoJfTtcxu6OFQ2NH03xKM/6N24//v6DG4
-XIpsIB35981G58dr83//5+c24/9+0x+NRuObrKE3Am+6ZtfwgPxfT5UqfVMJBxJFoPuGBZQFIcgf
-nioZSxX9STztBms08er/7DMadC6NVUTBpgoYB9qN/6TPSLv7izADKdjaylwjmmheKl+jMFUeDNjN
-8Prp3SCMrtHjIMSiU7cf81BqsZ2IebSB6tQhnY7p7hPnNL2R0pO+DkaDQr2RCJ6ysflpT5R3+9c5
-6Vc7JvbgxTEHY/4IRZTtrjrpQ+bW8ayfEmGZ8TRIRoCZGEDYZ4fu7jRHMMOupiBADc1eNpTXhyyg
-CwWThA3rYIByjMD0NjX1atVD0qh1+m6QSgo0o0gVNKaQKQVx9hzE8qHRaXdsRbUHDtDjIKcaRKvR
-tJtlHh4GmmiaJ6lzesvecZhcESzBfkmQ97lJnKGMimcySpHdFOW+kdqMZzc9ypdpTHBXKnqeHQRR
-bytPphguU7gNGnbig9jhPMLzay9aF+JSV2WEYvrUyoPTTEF3J0aG8CrXtRjixU7GxuXSVa9927a3
-1VRBJzAGrc42U7KEqYtGMDwoC74Fu2otOlF6PfRXkhJkmi+meXc/hmYXbcZgZEuek8MG6yuee6+V
-RMwcENorfZ9TicOmJMXJ52JKMFoqTRNbV08XrLJZauJsaoPkvgs64wbPwUxiAVCtV3ztWeGQSFTX
-bmAE4zMHhhXfxQKZbmP6QE/44DKT/jDNDj8EXxQ4kRRE7+TEop6WhCgtToVBHbT2lN6Iho3aqrXu
-a5SSlVcObxkscNlqEHpMWehKMRJXzDEKjw9bVjpFcTAGps89PrGbMdSw44BLw+XGGxLK19RYFuMK
-NGygXQfa2OOdNvQxx+AUL026rVspYB8hlnO7y2MwsraIaLN1CnWsEt/Upa7FjieV5aYUelHbmAaN
-mbTTg9IDkAyebIp7TBZSZahuJlm0QZUibyhomznt2RADV+oqdCMrJ6uTbL5NzMrAyYNUFsSaysJN
-x0mWnxVKqoUbShY0lnYsBIU+7kBlRQDAZtptSh6SHdLYolNu5TS5TCMYRq8FYrOtunFS91KSdZRS
-A3Ki7plc5aM2SCJjQRCzksI18AWUimAMjD6CwW+M4kloBT1wsVhJG9Sxc2ZHg9bPG2mQGumxiI0l
-89nLk8FZiQPV0aTpx1NNjvFLbgwixIeaPbHDhnbK8HVZZrrBNdHPNm16CyFxIpJUS4qM+YKdmb1/
-kYRVsilFcqTsSMiig8E2rXoKqAUeMAfJopPh/D/NoqkIdmQJvEvoaPlVN2V964yjzClNKdqIiyHM
-yTnlWHVfYwG8ihFcPoeyQhcjGIYWUYPKGNpKVto+hnkJEVtpa+mZXAVB9gurnq9ZuJAOhynTycOl
-nr0z/jJQCNmgvCSCMj81Mq9H/cEoHoQSjbCtCcSRU3Odp01bxUvr5MWSP5RymhKgNFjZQSlxLnkx
-Fa5rTolB64XK0D8OuVBQoJ/qavFCudSAmEp6ucVnTykCTbwinizOrDjgFg35tNBEQMPT2qDNoprc
-DahCbfA9BAagemWNtcAWdTAOtiqO9Se7/kZhlms4EHPM9yv9O+0TXxKkhTVOGOrv42TWFl19k+w+
-xilCubIhqnXBNTE7wIW1ln6WlKZ0VGThSJ8JL1DUlsq9CSuQ0qIojbs5ztSEV6yU1zpsBrDxeTkM
-V7TMoSGkuSo+trQJqJjJIVStfOyrY5VXKsfORlLLbYDv52Rh8x4cZluzHLBkjc/DnJpuGGjPFKVD
-AGNTnlN+isCZbqqiGHHF4mallkmbyUcQQiy8klVQYvCMgoLqlVGeWHjlMd0KUTfGtqJ207gVDFGh
-MqaWeBWZCKc4rAEt1qrcHvNmZu9WphOuQq0MW3QD0A0no2RUFZqS7g3Ruk4UNTMOqTxMWzw7iXBl
-EBFIFWWe+nNg8eC7pnJqfRZZyjqt0Bm/T+Y2BTUSCRAsi5STxT5kWIV+ONV6xqE4oH3Z5NiSNzwP
-isheshHcl2XE/R3OTCH1yQGl5FaoBQd+lim24hNd3NaJ5kwNXFHsKPvxiGafLbA9vANDtUjObzW+
-IG7D96WIxBRHZVXyw1Nx9ia51uTdTM77e9UJMx1uWcQNsfQ9LhrILCv1sco7HrUp6wYGnqX7PZX7
-v3u9n3l+v0Hx/v1O7/ZHU7zmb/37n/3zv33b73u9ldmH2FOyQMH/RgL8ea+HL555Ya6SM7ZviLl+
-3+uJ3ywJOzuzlj4jO76VT/uHfd76Rv+fRc9gZ3aRlf1H9vkLJfufirJ11yiLxoW9LIuEdX+l4y8h
-ejItkk5X/ssx9Ozdxt75R39n+/7Bv+M/O3vDr2zP80Lb2W/3n9vKGe1Pd7vdfo726fwLvt6X2Iy/
-vp8v0khVHIYg4f24T+69v7E9x9u6P23Hb3/7bD8rVjW26z/Jjv/6El8VsiViKynmJQ7bg/3ku/5g
-2zv7eePbd7Zv27ymu3Vc98pxr/yTY3tX7i/egczt+9t38EVtT7GsVcVEOh3848vOv/e5vs6rs907
-51+8kvQFAPKXD/s1TK6VEUSgBToduMNXfLr1vq7/5d/HF/+wdY8He3d4Ofgvh2Ntu/7h8PLCO7Kv
-Nzv7bne32W02G2+zubZvvK2zd662jITn62tn69j2te3cbHnX7pYLtnWd05VjO/bW25+cqyvXYbhs
-//7W/Wp0fM1Co+KZyR2jw3dPT2/H0D7a3vMNaTi/umwXRP3fTAsTmejP7ot0MIwBINvpyj24rns4
-MiUOzIrLgLT92j5yz96YFTYX7LD+DV/IhPHvbP5ox1+u44jxxHSyb2z+il+tg3m329zw7+2Za+nu
-ndOB68Z8O/jr3Xdd58bx/Z3HF/L7/d5x1jHoHxgjR3+9oJG95Y7xPdwv3+WOXPGFXP2nw3G9CUeX
-7/n7S/7LAbTOpp98KGYYlILBleAl+Yy8O3tzcHeXS2HzEXhX/M/5xQ1Qvtg1/jpu1yn008suBvKH
-cb3TT1zOw3nrrBeBX7hH17na7Q4MuhcG7o7/u0zh3cbzaptf+lsu6cHd+i+27z75G99/cXfHI7eD
-Ne14F9r2d1Y4n6vIffL2TIgn+87Z25fRtNvsjru7H7vQ/nG3/tC3++NLbN8v9lto7xhuu7u74x2/
-/fGDldK3mQQ3ZyYt/z5tz955+8mN3W7P9v3dbjfZdmhvmDXfr29uvt/st97Dbr/9OJ8cb+OcHPfg
-eN7ZtV+v1zvIODszW2xvv79mEdhvudwu685lIeKTf7IgHVxm13br8PF2jJgrZ+vdMBIuX/h45o/X
-+Xl2r05PT657dj5+MQ7+jFn56w35wldtEUNFxnpDWEKeuBAMBOfaYaA62yveq+P86kmwCqf/bpU0
-v4idcxK+wKDyiscdw9/53O5imxu6DnRm3JEPybzit0wX/mHvufPrb92jf+/e7+4O7lPJTd/YT1dv
-6/zhDR839ub+dlhXeKbpHYPGOXvMMq+yvZvXxN4zzvauK9vuiZXwxbIfvJt1Xrv21vV4FNj7dTX4
-xQyT/lxt+euV/fLIC6SuThY+58F9ud+tU//897dOFdfJ8ner2ZcnHs99Tgy8whUD58iCsz4HrtZr
-x6dcFyCGFgOJ8cXMYaBdcakY3ixb/Jbrwd9tGZMH19vzS77a33H5t/wtzw9+zUxwmFMuz2t+JD9+
-/RK/5Pt399w8Fgvm3mVBXF9x5zsvfAlvwXa4C+uX8xvPXqfTltfla/mJt5sjP54pwI9iKu923rra
-Hg5PLs+r3b3NheJ7eBitI5CVkzfH9/Pz1h/mXPMLlogD74ipyK6G+/ro7dcv9fY77v/NZdXiU283
-JR+eW2v73pbxvK7z6xrOe9vwnXfOKz+VSefsb9apvV4mLtT63QyMnBWH2+Xwx39/y/489AkmQPov
-60Qik/RBFMFXYnKsSgHwMs7loT6FN+EyBE4/5sOVEGkDUBawKCbi4l+86J9Hye8vimucOARZRUL3
-ZaVHgNQRaQUwpwnk9ETyTuaBsDF/8SpfrWyXj8aW1qJMySf76sNTqCng1+ajReYo0XuzkAjbC4B9
-2mBF+YsX+xcfSVIVzVgvJvFZX/cLmh6QPVAjW5PmeATFmgebUtdy/+/v1r/4SH96lS+bhaYs8ZJp
-vMqAPNbOx8q8u7gjwHwEv0i9+VcfCK8coGyVGGLD+PJSfS9FOnZb9NKGpW1G2i4omxfjVx9oLSb/
-tGKsY4FIbomTy5pgvbLqvjx+M0uUqFFDOoSPAiozMlIArPIifM8AajwKcYm4KELtJ/hkUQ+HTh7k
-DjxDIIK37jKURDL6c2dMyXUiqrbXXgninQAIU4hVbJJedRryhT50XmVEOnUvU6inzbRQTnXXHhm8
-qUpM8lM0qcjtgG0GkoOpVC1sUxDL2s0srjDao7SfHORzHH/pTAGmNLNU+1zKsS+8vGry7UxPjBAF
-PUXX2we1Km2sTG4fR5Bi0V6WB+oeYBh7Z+qX8aOkodg4YxREJD2jvEZPO+VgDkcBhQ0yd5U2VSe2
-xRG19fRIHgJ5FBGFa8jV0ahZdqSPzB4F5Ozot7S/8EerMi0+3HEhpGsd9blLs65uXKHRoOo1wKgy
-J0Yh8AAUAeFyDrWG9Akychtv0QNa0/jss8aThdp6GqKsfi4byJvYU9ZgiSCGCuHElHUtT4ws9TBR
-QpSR1Va1ZHcRIj0vTc0I9VyWWh+L2FMrpDyoFU4hmchrqXm0OCPEPEfChu8yPdSR2iH6g46h+eBB
-k1M2YF2xm1LUP3W9kj7zhH4y9E9jtg4SnmXVmyEd09FDDX3TpVKtbLMyRhBAR4yIiD6pmiPCnNG0
-VepIr4UcVucWyPezUdfZG8pXLCxGQ03RrSkhIrbRxeQwSypZSmrUhe0DduEo9HWk+pPTmVOKwm/S
-6s+iG1BAJJ01MrVltYi9qloQYqXDpDsQqHkHRVpG1wllU0qNNDEHF6MEWDfTSm+kAjs37YhUhYUT
-riXUmPG7GpDp1PmKNWYUmgd5dsgqaQ+DKWKMCOscGbRSqShMBYRmet1SE7Yyxcq2OQXg77A2tNjN
-uV2L05QrjBn/dpFQ8ocxYXOrrHPellXjzyZhHl5Tx3HojAz4H6qim4c8CREtzoUJ/DVNa2pC2dh1
-6baN0umZhClwUlQZ8uuZGHIBtHltfKppFao2Q6ErblQttOQdhTekA4GUDRRZJes9w94C/2yJ4beZ
-cZffCVrVpPfTwBjx6NkIDxjeG8KIyqF2m8UUTjUgrcITqK/uU63IC98UTGLjLK1ba9nMotnWxTp5
-LOPaMl2lnWXm4gpJdcCWBgeUg1puZ3k4J04V4HNFmoTMHnmJitKlaUyultQl7Uk3FcxIOD+LEwkX
-BnQJqRiibUNhrLnu8RvnXkLmr+gGhGZEfgPHdrSHDo2/LZQG6LKFxuoZPrz1Hdqd/C4Fkrm4KB7q
-c1s0q/pqHNPKbsDaZY4oT/K2CyBxezUAuQaBn5Ddrpgz0RaVIiU9ZYrll7oMzNSdayRtN1OxFNeN
-QXKhLQ+9eId+nKXWahEbYhLONbCCUW3xyIJ0Zo8TVeQWAQRWCMBr8bZOEIjZsVk0mVv2MewTAAYr
-sERJs5sOFs+ID44IE7edVKijo5GhuKSGHFtOBhLoOaX4+4zKL19cEYQnav8QPoeNQydMHWE2ozer
-rqhzVmrT524ZxcF9X+LEafOcO7FUy1oolyrIJC116AhiUIrFHY47KYjMqLD1Uc2jhOfGf4KE6a4C
-1AEUpMVlukeXo39MbU82oBRY3Q5RvGXYSh2H99agxC+AM+rHxhiBeCnhLHygmxlehVTNZp7oonJW
-64wAr6Kx4vc6Y7TahRIKDyJT8pUafBR5GvbyQ0ZlfrDpy+QlJX3C5vFIxOWDMZkRJBBTbcG362EM
-4S/pnwPWKdnuwzF/jBplvO/ynqrntHTVXWQUymnMkjqHKgza2auTILoZhh5N8cgTBA5H3pgI8rKo
-RgCwRGT1Bg06KC6AVfmVhP7NGWoreEDVhXNRSlLzh5pp+Rn9hAQUtQ2QmOhiEKabGBnqthGgQm2Z
-Pzy0YtTbN7FVyT+w/7S9YyoBdohQxWYDs2Rpdhg+tAeBLqvmd5qo+0lUqcXewIyODJuQsu9FyDXi
-utf9DWhVvd4FYjBTmi8QVpGlA+pCzfWEHpNVQaUJBowinlwJKm2GrLqaU6V+aqOBsm+J6h0Zb9WS
-6qMlKV0DNQO+iv+7Dq7WlLJ6L2Co71Yy3aSSG493T1NQALoQKKAJSLomqZvFGqbUyWkSRK5gaqHh
-o1HXH2EiAvkaaWMGN2mfF1cVa6Zox3WP6UJeG7zdoKlP7aXrm1QaWjBtbQaPTY5CSYmk6Hsr8tac
-eO0bL5cW8rB2k4V4yWpbpxM6ujBiAPJbl5L1cClfQ/qglC1eytpw25g/9aXcXYMHeGfhoQgurvVw
-WJmUxtExUSYPAOq9AeVicIm4YyBNDNTUQfFSXk91hhtt3LXsPl9K8OKlHF9eSvPjpUwPux6NXrBW
-74XIWsm3IAMjoh9B723wPlLsD/UKQVN0aQLQRVwbAvHaHBB0PoK70K+7N9qZaMtq7SQIl6YCPyq6
-T8xgkh0D10t/SPDoHhtVyPGCWA3W9mKWy26DG2wF8+UalPScoCzuOQBkgcsysOejKgwE0RibxdjN
-Qw6iu81bXd62mty2d2HRmEepm/UWfU6YXU+WRHcSK8twnqekC3yZvKGHgIEk+eOYYD3Fw2aVyUjj
-oVD4kA0Rvu9GhbrNncolepjDmAbYsKTHWa2UU6xgQ2DAAtKJZnTNGUjlwk8X5QciSG55h6nwZArs
-+G3I7XA/QzmIz0ULUNAZrFgX2X8zVKogNjN3lqLgJanodfh6IySABeehc7qy6DIvV/tRt3P8kZaD
-UKfT7BxdVI2TFeCGm46iWblFPLNTmqMcNJOZGs1TY6QrrCxRGGYGk0+Cvw70sNeyeFqVrEhH2X0o
-z7go6xu914LjNJeMunbVYY5IMw9DO48/LgJOnB+FCT+BvAD8pUXQroC44joxm+xF7cX0o09FJXRp
-rZa3ot7AzNHrgP7YKFrtzDO9j4df1Aj+su3nqpFqI8kiGkxRlr8c4HO0oG0eGU9WnM5urbAZmvQ0
-/cWL/OUYs74IUY9s+OkKwO39854fa4qqJyZPHx6BlqfUirZXemkJHbWJeVhfzkz/7SD93EGCgcxF
-/vcdpLu4/MemeS0+fvzjo/zHuc9+lg3h8V+/+/dGkmp9o1ekWoYpcjL/LXvwDzqB8U1XTWsNINXo
-M/3cSBJk45uIgGHNl8VkaMoqB8Y/OkmK8o2TpLSClX4TIhn/iWqIl/pyZgQkpcqKRdgKOAQJHeOf
-xw9/iaNsxq7bKfqtXofVUenHhaVZWJRMzm6HbGnZv+i52kI505EcZhYN4KYFDymS9KMTbCPFc3OW
-rcLkeT4ok24vJXp6BDEYVm+XoBXTllxQS9MjD7/jHL3GCHEtdYf2pBIeTawazH9t0Mb4IMJ21Nhu
-LnXGSUzKmoHdgIFmiODBPBEC09E4EbB9GwytCF7GoliQ5vbTGtN0iWxi0SO+qb5EOalNSKwTe+PC
-OGjsiW/UsQS9Y6wZUNOFET9dePFtY/ETYyyz1+aFKC8qyJmzXBk/l7y1wIp0wOfTssTSjf4GJr0A
-a9SE4weqvhHJnXPTFWA/g4QiwyKx9HfxQrjPEzTX9pzF1jnGH/oYrDD8OOjK83wh5A8rLJ8Ebb6L
-HVtyZpWvj4ZRs1PgkRQg2QK2j+EvDXwsyMULe4TyIQDIKzi5FjdvCk46xS5XcH/XdQ3u7wvPn5A/
-2P5RLDamTdgHGYH016erZQ0CiBVU4zYd+eCjVggKWEQF9WdmzoAOuikE31NPcXVrho0MaeGSNpCB
-v7nGu0sGAaxG4gi0FaebXVIKBB2BKKGHMukFQlwhmE/XUAM1sIbH5pJ0gJuH1IOAj3ZOLlkI2iTK
-36s1IKFcoxIIL0L5M68BCoAyyVKI1liF+ZKwQGAiaQtG0zVnnY0Mp2xVSI5xRzCDCHyfBIKg93qx
-br7PiEWvgzXKIYwIdSDLqDvESZqCZLikPkSXBAjhkgZRXZIh0OVk1ykC9d7O5RXH0VEz4WAfKcJ7
-2BAuUV5yJpo+InIiXsMnLKpgXj2umRRsZsSP1CSoIv8tsyJeKCK1BmPPwezarMrqXDvMYabvtUvu
-xbxGYGRrGAZyco7j4aSRrHJJy6hJvSD8op9SAyYxgRpIhxGfNWvMhj4a89FAgHPdXlI4BOgV57iz
-ZBDUl5yOFbdT2+IlvyO/ZHlAHcYbHk0KfoBUFF76NfYjTAcKLUbbp/crLPJcopogFGUNC1GrlC2L
-eMkQES95ItklW6QpchRWDSUFO8Qd1NtSk2d3OvFJb3LL0c5NWsk4LmtuSSCGeOgH7Mv3Gbai09gM
-+DzSMZNvNExhxFVfQlBGaAGVQ6hS+AYLo31XQ1m9JaiF03N5iVHparEE0XaJV5ErFMEQJ8lcWdNX
-WmkNYmmmHmF3ImBZFpom/Q6ZidCWAhTzawvqFgYtOPz3wVwDXsjf4QebAbkvEHCJgOklhetsXZJh
-1owY6xIXA8tPukHnQ5RGDTIOgY7ZoGi6xMwEZj2HLuoaeS9cgmg6Q8yINm+Jp2mj3ozQA66xNRHc
-AyJsAB+/6RwxCX9s15AbTGRN4SKvJvxGXHNwuI7mC4ks1lMuIbqzQyHtJq8Lq+kRHIN8r0lpAARg
-TdfJL0E7wiV0R+jhrXlNysVxsks4T8WX3CEBJbKnIlD0luY0enYrwyvvsn/PA5t9OGE/wZr7M2VN
-OW1W7WqMEq4aB4eKUQxwIR+WlaVuVhu9GkiWUtg3IHeJJQBNyVxhOemVBLVY2KAr7BLcuY4QZ/iJ
-1CpJnpoqje+tILVuc+yxoz1SjmLTS3b2WjyDbm1PhIvBXI10SD+EmjyLOEeZZ6W28l/kNHjTo7AC
-t2jVicoRPpKpxvXdvFcXPQcoJgLBYQmss9hTh4iwtgzypeJJuUlIzihg7q9Quu/asg0bJ0C2abrm
-EsnX7E/VB3b6WGHMRo+vxKzBxmCSFQSYSi6azxEu1nVc5x0Q1gaAoYv3FBK6KsfEJmndqmIk6U14
-Yss13lTEoUuuGS/SvTKhk6SggvUJkmVIjhheAEShYVpYpy4NFpxWcRoFXhAg0gQ2KwsPIzvwhyAe
-esmRpR6AvmTK/atKTgEpZWM1N86iidyvOl55+S0Om1uFPTPu+g51bD4tYM0USVC2ZN/c52nZMKMU
-wkQLYWBllPIYwZyKXx2EKOBcDyHq8lonIdLXYugU2RdLWQ23mdRaJ4g7gMssa+rkKwUi6SN03L51
-g26eQVjrnFB2crKeg5nd1rErGiHDIiGILRB8WOE7knrL8gSlWAPRMGe6zRG5fdUoHzP3YeT2XkWZ
-VHN4nOslt0JChz9xEnwdlFHAat83UuLzsGf3r008zhzsncg6tTQME7fCNgM1pzKTl6UlTuDIs0hK
-oKFyFHLyslNJTSfXD88dicDxPsPKlR/GITbx/KbkjivDgpEmL6cEkMuy0qP7RYS0xGk5/yDyQGr9
-OSI9wJ0nKZL9EF9ih5lmERoXzyaGbaNv1fE+yRZDsPOsEiTObHJwFyPJhGGWKKmAKGugRjOnTf4j
-KxCQOnifrTsMK5D26mXOD9Tlu6eggzLkkFynH2qNkoOjLHNF78esEri0GJ/vhr7EESwAXUDnLFXA
-K6gUTbY0WlJGYU7LPkogxA+NxsOu0kx01O0yA+AB92S8MgaqTxN5CKWfVFLvOLjwpupEM6B+s594
-AYdBEMFA/iLywGE9XlYKUcmBai4voTCKB3aeg3hlypnyMWqSQiKFsFZ/6iwJdwGgAJS2olgcZ4ae
-RCqfggMewkTFzSTSmd3YlIinaM5VWMeqyA0cRFG7Z7NnQFbudRbPVCQ8XZDE9qGW0y7mpNb3Z85x
-U+wUlARJnrxwDZpoOHVgG0mPNLP+GgEnQsqSQuiNEY8kKmRiW2KcrqcgwagnRN/NmIIzJsneCE/j
-0NVkUTfjWea0WjlpOWAWAi5knnSKZVwcoqCP+OkIwhq4/t9zOh7Hca6ixrFEeM+2IJTtLZWc4D1d
-69AOO1dMGuq0cmrh4IB4i3h+I+6NZsOjLBqSIp0Ybeax21ffs1AwiRWWq+g+Qi2cO6Fo1c+QIMl+
-TKqCp4RU038IgtTEWaaPrA0Jka7cZSwr9zXCyhyXZ2xRpJ6Upnchz7SfFmEAgxulShU74wC239ZC
-iaoIQCzqITGAYgers/6GfN44Ub0qbmOKz7eB2MJYgjsq3coM8sYTu7CBSdtUSuWsq/zsy4mi9V5C
-XvSrkZFO4FH8ygWf6llpuaR8mFd5rnZV7CPYn75bCuQjf5KVgJhHVTLrjVTWwgFJrIqCthVJRjG7
-kNXZzMgVwCU6VdKxpfX1kUKQxkjcSnw1LNR+28h6u0MTQi4DolHlaUlTQDuWMaLnbwSQv+yaEnUz
-LxpMxxyuTutrTOLGUet0vJ1nVR39ZMAL5/AUFh5p2dHfCukzpd6gX9L/xgqufbFQ6ZXYFyTvVpgM
-AkkTuI+pp6aCualqVYy+073gs+rkldDZkKi/J+dRUcnWGMJQQsO6wLF+6A1e0W3wctJTqEJcvDFY
-04TdrvZf581f0oxoSf7dSfr/vDc/fj48X77896Ozrn+jVGSxK5EkVdaMtQv8+9HZUL7RigaIzoAi
-ov5ixfnDb2N8k1Bf0oKn38pkg3z1z6OzJH2TVAP1JhjH/xzsh97zz0dnTCoyNVjcNrxBzuprWPTP
-aqdwMkikIQ/YbZOhzl7/H3tntiO5cmXZL6LA0Yx8bKfPMU8ZGflC5EjjbByM09f3YkiqklStBvRe
-gCBAujcyIj3cacf22Xttm/pw0h4tjDjtejx2Clz7gAKM5HTTvo63MPBdxG7oijV9eCyAun1N2ko+
-6DVkLVB51gvMLDhrTTmVVNKl8KtW1n3A1IppPqa6TM5tx8lRe9bwFEQzXW+As/2TI8H4ZCMdogNM
-JEbpFgDEor9GjUzrfem1tqAnoKI/pQQLTedn8HtmBLwfQGkTF+ZAvMp2KEh+J8ljCbklR4bn+PId
-biRaMSHFTUB4Rwi/OG4c25hcQU5ohlSCHla9YxFRXYlbj8OtXYzu7ZSb7mnKwGnUZQ6VBAfkn4CL
-Q0ayIoke8iIoTtQX8ox36VK6zReE7dJq00vgTG8kBmyGMa9K3l0dJredEelVwgi5rdPuNRvy7MDB
-7l0Zw3agrWGCrWv2uM5LcYV+o57bonyk3whiFdVn93okRORDWXjf6tbPM3ury2I1XBRn5MAvPSpC
-Fi90Xu2lGKj6mAv7FcWS5p4iCr+QiNJ0QQNxYxdWnF2Xmou5sVJv16NGHmQ9piHDTMXq2bChIawH
-J4Bi++VOi5rgJr1KcbuM68XUaXSogiK/tIoBYCEpmNfvQ+TAFsnJnhjWBTwTY7dg6nPqwYkJkQ/7
-bAnCmPBZfloyO2HeKHlgkl2Zj/wq3R2X9/KagsO9WSubug0Sm7vIzdqj267gNgrRMlaL/jgMjDlB
-OHisBhjiO9m4Fyip9Y+VYfSAnB+Qzti6Y8AsMNX64GRi0XrJQ639Z6fOKHr0G5YyQdyllNfSmd0+
-L52dHrG2z89wgeR5ksNGB+PvW4gy5wQPxwMVcOKJ79A804dK1rp3Uha1ajxUA11C+VhwmIdjs4cn
-MQ1P1RxM4dENWbzCj+DmntN3w07b8mD9XemGGPJvFSCd3j+M0xRlwX2KRkK5bMpKujpX1A0i5Pqk
-zzz/WLRpFm7N0A55qL2/tqpx7rRjWTDtZpfSKIFAQmBgGp4XuNFrdiNwJRQO19GsvkwIYexJiwZ8
-d9vsKGQef4cIQXsfyvwRCl52kxKq+yXU2r4llSB4VizLpYuW7Cs7YTgYE1TQxzFgddF3vFiqHdMK
-aqTqDyYMm+eyz/Vx9guPRS9R1bPTTeLWlPDbGfZb62MNtblJsc3GYvaqxxJY573N7fCjTMgs1NAz
-ftSujk5MZfKOpcxqo4slxUkB0HleZ/T+HTF2xUDdAvofJ7+6EWu3QdoUOv40UcjJCW4EcBdyeXTD
-GHHPLVu9YPJoITB1EX99vR4V7UDgxyJ4gKjr9WHN/eCaj4vgZp4MjxOp4Y3R8OoBIb11lS6rXa5C
-qExJZ5iGwKY9h5EzxEhaBfP74P4KZLZ8oTgaIqKl+vbW95yntfYUCyE+MELm7gu2oupZ9qu8lRTl
-HLIs9x5tz3jvslnrgLGQFO7k1sF0deYOFg/jEq8jEST/j3Id97XTaHETkT562vM6e58tq39U4Ovm
-nT848sX2M7WnggSUqpXq4Avl3eTw2c3upatggeRzvufGxdhPfiQ6cUGmdBzhEohoEID+SN1cUI9h
-W/095krFE7MsnlBj2F4hnEb0yywkA9mhZzH3MFXsoSjTmjqCR977bbSggLB23il4Vt9SOORwZqi4
-2aUNdeOKkgxugaXgf+eD/0pgP/pe1dnIJijwhjs2jcFLvswZEqltP0ZlW76sKvKu2Zj536cucp4q
-Eql3c1+CTGVyXWlvG9gNyVr+aW1+HFbxenxktnQPLCmLu8Lpra+Z5QbtiTJ7eQ+ze6F4dh4vPIsg
-U/VmMUfJguppdlq4KOEc3GS8V342rehOM5pnu+dHFbutvqjK90xU3sUetdkD/oE96nHl7135wxZD
-eMJGNpNtAqDNvwJta284KveWo2k52faXvvT1ObeCCQCQGH6KyaS3DqclhgkvvK+TmvS0QynfPSLA
-eh2ptX+CB4LYOVsgZlWSD3GTeLgu0s03ETn9gU6j1GDaAcEzuIX1OECZIMbpevq3DcP5PPdqQb/q
-qrvW45SONXHMu6IO6jtAGdCHCp0xrlYhSfIyGYY39PCMgurQD5lq+/I9MZyOweDgWzCWDE5suLJn
-Sl3sR8Kp+oT1C0yrJbp7Hj36xtYloX72jzuQLTkgSmrqVvkzwsIiLjQhhd+VRIquVWLDsJC8qhhY
-7GWP0FxvhBX/u2mgylQlAKGIjtz7OVfWXUC0L7YhdJDAR03+hf1p/uLzoT4pxaEW56lMPoCCJaeq
-Wu+MphVprrh+T05cJahVjVtBJghpiKGG5iEqggiS2vzRq6S/csX0vsgIuuDO9KHzDoVWxROn8Ndt
-Vfujxup1WMm3vfHUa++LLAkvOkzXRwCneqfUomNHVm8gz+5bB0BaP0fBjQ7s4q7q9HDsM7xHtfWS
-UQO3H7bI5rFU9ZWsJEYp4dyZBYPa7Jrh6ENI4Ufg9dznIulvbCWoeWKmP7EIKPdVMdt3/UTMuW+r
-hnhyKC58hvFIea4653YnrpnPtRzqY/sOrt+J6SHyD7VwltuumJor6lGPADYkp7m38nNGb+Mxcezg
-JctFdOCYikB/eusjKd3lQeeRescyqO+Ru+oXJ1/rUxCV/cmh9+dY1TQ+UmNVHE2eiOuSN+MDdgw4
-6+G4g2JtjnzOOoNRCZnN8V4zz6EcJjpQrsQ+t1Z33E2uYaUOWbEeg6Tdj1N4rkkOK5u9R/dNe78d
-gq4PMLwiLHRuPaOKlM10WqUwW5uhlzzBy0jf+9o+LXLp95NDzWsYuB9szad7YHuMO4g/Cu2bwh+k
-31s/QUy4q3jjzfsOgWWNq/J3JNvot5dww3P8oV33tT3wBdA27ocIlBFdtAENxXK4dXXP59K03SuI
-Jn8/hSn0RrbRAoUsSdT3cdTrpQowO6Q4qPjUQ2LaOYn9jqsGAmST4RJwzXSkHg81Ip8VEWoqfHd6
-dZyDW8zWD3uL/rJDbQ9wQiY0wMymAntFqOtn95G6QXipKCQUk1cIK0vxtber4WClkP005MgrA+r0
-bTL2eARb5cb4OoJDmpn612DL5JwRvLuv01Hgf0LwRWMXB2vqvb2qIdvChNWMcVkf3XXFmh4Hu2qe
-oAoyvY55cSqTKLv6VtqfFQrmczQuy6nj7XoRM81Mxjf7DEPwVXQkfamxEfvZM+IkFs+62j58x9og
-OIzglvZ4Ld19VmUpKXzunC1uk5u2cb6yG3ktZfpuYafY62ibM3UBHzyxbljWiZ0jlqfEm9q45amy
-mzsYN4nq1n1rOctz36YpNFj6YrIMVso0NsWxsvSXdaqTfZnyG2U9xu8sx35SZuNvz+vUoQd2ss/8
-iYpsItobogw0whQzU0FLq/qHrb51J7Mk3wWruOezcm/LHlocfidATWk8BCtoZ1ABuy7IftCGyiN5
-6t1jrvm36YpDBdX2x1BUvzV2BaGjh8VpmzPK6xI7FdyCvJFI2zb2qITVA/8f+daSChVReNckXbir
-5I35sPuk+W2QVaGO9JZzpoZIxGWJYUrmdn6A+Nkfq87/hgWtuenLtDp6Vi2PHq0+p3zIy2fqD+et
-yKI7BPnwauBg3nvV3B7bxj9JK6RDfakM/2wyce/LW7Y8AYY256vrIXjDTc55KNdvazdeOiorYWu6
-+wUhZ1eWKCft0Cq4QPTARYYCSCcqSYfzulHAdTOwg3ou6fk+ohHi3bNyQNWY967LoKILBFne/Jwq
-JyRc7Kuq9K90xdMvNdA/MVExHo8DCmUy98vOlcXwAlOtu2BxBNKdTxBuQ+ZwZR7DSn4hEVVsnSPo
-+CLZsdohzf6HUL3m6wAqluOrWU+hXTt7nZbjjZY5tXieBU1QPObA5A7+2s1n4MXxYLKL8Ok5r4hN
-ixDmW/XHCmFkmXtqBdsrp+54rru5fAEkqC7UadiXKVpT2DszTD/LYbADGhm6l/+1JXTZz+EftREX
-UQO/97+3Jdx9HzZfQgOf8//lS/jrl/9NXAnIqrqkFWzPw2DAf/03zCQI6Y6OBFO5pFUIdYVv+ndx
-xUFdEYKIq+9wzNvyH30Jrv8XWwA0CTHCUUUpCSL8B60J+Ff+WVzxMUC4/Ad31JanBZLyz+IKx3aW
-MsnhAC7zgE2vsb03lEJpIIrONl41ljq/x6ldvsKwt2M7rKmvi0zrXLQ7zXEja+fF95Z5D2FsOddT
-fmNhiHp3ZGlY74bFY1EaFBDjJuzwUrSTOcSW3DZo0srH+cA9pkYTxPG1X1j6pXGWjA6geDE+R3qc
-Xjho6vc5qtVRD/l8DYsCbBW+Q2a3ZXyUbebbJy9ryjcMFtvhSCL9CEmoE0dbpoUTR6aX7wA+uzyu
-5TrcGpMVH+gkKAJjla9wg9vmFyoYP3er5UcG5AB2lvvcMAqqnb/W8yvMGf+tH7MItNhMTZ6wPBC6
-Hjb8aXKg3bWMxrush6eyT/pU4AVc5h9FasKTH9kWF97Ff8Agnd81WB1Yznm5uaQrlcNck1pLfO0x
-/+8Yvj3KexOMUjXiCRcYMJ0+VY4P/ljMrxWgzjdjiQgg5paJt5NZeRwmE69YOK3pL0PjrMfaY25u
-fezt68EuDbS8vKScjtobqHqFBYCFptL51Qam8YuKef6CBKWo8YTG075MQwgjDC/5DxQlo47ArplZ
-sc6vN9PE4oAdVeDQ2zhvDbKhtIH7bX5HHLa8HowB9T5z3OKl8qAF08zspL8Sz9o2NOOSL4deb0Cc
-Ykn0ENuWP12Rk719MyrvI82W5CH8rJOkf0s+9kkV7qkczzHXy7Lf+7aBcsEvEtqJjW63UP38vgRA
-3CAfTiy9cUg+Av61x0OZj8wgfkC1Q+DKfs8+qnlKTCp+IvNLcP1b3aY1O/HQVz8zq3yYuERCZQwb
-hydvyz4w9e3qglQaPYSlp74YVw6nZg7Tt0UC6B4Hev3iZe0cLiNWgobEwZ5cEp14950TNLci0/JJ
-5WDsa3f+bVHWsEvKKX+fAYcChGctb3tV9IFSLt6SyfGnXVB57VsPfu7Q4p1/JxjhqQsUG35DSTuJ
-A0C5+la4rfWNArbIOtulwNLaD3XNvocgxgFPbQi6kTeqXQTASbmfA71TpgwfmmDitzmugIR8z5iv
-Xm3GB5WV+C9Tv4QYZyT9FgeGdWoAP5F7KcLhQ9ptIL5SaF0e8k9AH24JYH1DTwzhKIswl9feH8NT
-yFIeTcZsnD+bbmU0CpsGAHQdyKW6psVbUHiB8hnNJydSw3yXCO7gLxOOSzb7OlUxoJPpkd3JwI+Y
-gySjYqQ2V5pA3ENeB1vqwc9TpDOX2yE3Kv97t85ls+/ypq87tjT+/ISi6/9KG8CuGCTXaA9w1nnj
-1GX2qKbytLIScqwijC0xQKkYAioeclWpFzmXjtxNUmbgSvM0dF9tMy5PpQWsnnDUn2CSQr03FDOo
-G428JWPefUn6yDxScZMYIcFwg9g+DHMSCRbfvCKcGnwu+0IH6fNUh3zGN14OS1m38T6aiYAFTZcb
-5gJLxqCOk5tDoktgSIKYh35Od8RYpL+4+9fhOeDSGsJJHGlMK4oCWkbGFzUXWlf68iyWuhoe8IU/
-2QNKsWzVV6uMro3XLs9sh0ZmwP5bnSbt95bagGvaIIYiHIqzKaml2kFOSopnN2rlS6dgCR1YJvLD
-QjB/7tzoKMVCG4nO/rRR0+1sYJE/3RC5eBU+dPTU1/VXA7Wc4unK1iouZLus5ybvw8PUofDfFnQT
-eIeeh0V2qoa+SGjn5BY1YTwwq4hrLBbpZlby2U6JLKJdkDYFaClzsEP7TeVdJjS2gUGvszz0zSLD
-uF+iby79CQLx2B5r8B6QPdB8fP+L7VFJR0sC8mhXHp0V5ksoNTkUHtrI6TgJ0lipoOguDL60+DQ8
-pG6DlHeMADNjn/UiWwsKraP10VL6CJoYX2sWWPZ6icbGfJvWVkdnYOiKptK2lYAnsToglp0VJojd
-QJlsPE7Ob1jTsdiaXQAhg8oJfB2cjPAHyRz9vWvWLxSao3qJEcrOJXH98kFyLcckDaiG3gbtvjkT
-t6IYTI8lTu08RBoked9XF4ztSewMASAhbETUtw+U5XiAnt+4NdkbRo+a4yWd+ER5/UO0wkyMsXrQ
-K9PmnSHDwPXkZOOUjdcyr/H7Jl7LJdMl3/ZQ5hlnMjUrqBKIigWk/qxvr2Xls50jWukVh1IM0Y0w
-PndAfylvTDCumoK2rvIOSykxJzqI+YZlcEpvGXLEM3vM9XfXVNapUYV6szLRICQZ04sTq4HyVpDi
-+N0S9HxoDXerHxRWK++SqIjFeTNycJce4bdH+gcpTYEhi1yXqU7bMfGkrDlmVTc+g0GcvUsqOnI8
-WY6Fh8e61EuMkuP8sBj94T6XmaG0HoDXsqN8gufvVCpqYEgHPVOYTccwzQDDwA4JJS0OVZuc0yqP
-SF/NCR/eTncUhqMsp905zZK2v9U6gHBlWcvBtxMPSu4wgxr/hOGW67SeCwofelCZFb+Gn9Dj6vEm
-zAcenrqWqb/vQ/wkEGhs6srR+LEWLGO/b2bpJ/0XDhfZ94dGOPM9DI6sPbQoI3qfUlfCPYVGD3fH
-OzHTvMR9MrwZL+rdvcjHk1qQY/ZeFwiKUhQVsvvJ67LpMa3o18Fxt+ibsRvoe+HWHEpMKC02Aywf
-WBTnsYqOTWNAKRLewEFazJpK5DwbuuhW4/BQe4PbvtvXbjmzM8bQZGh/WXbe0BQcTFsEpClIH902
-aPpP0chf7DD3AVpD0XijFdMSmn60Y47A346erfYzfypVzlW0FHTzbCgza2jb+8RgYjhF3BKb23lU
-bv6Gr91qrxGAozMZmvBOrsZJSEZqU+4HsgD5haYjxqZmtvNXW4zBz3aA2xoX3C+XQz1WwLIQQiL/
-QN2uPojacXZ0toB0dtLlvXL8AHlqXphLMJQgOAP0reVp8ipEc8du+ICpiFb7nTSU9pChqPWDXS/l
-6wjrKT8FTVE354gzCwt82JTiwmSRgZSE3RcWzgmVHlWqGMfB3sk+KMQB+iQlN0kaoKd0MG9tDD/z
-lOHlohWsxW3PrmC9AYTMM6Q/2ya8ysbY527maQc3a0GjZUXyLU+Zh0+dspdrT4BO7HlHm1MQtj/D
-IKfNoojJpeyTRiy88YNj4omTPVQvLs8ZSm0Ry4InPAVflKLLaCJWZlNxIV1coeE1z3S263pZsxsr
-TzIfv1HuemkJBMLp+y6a/h0y1vvi9y9e4CV4lxsHPNO6t0psYz0dT3Hg+zGuXSQbb1ePzTfmrudg
-zG47xzqG5ier7W+o5T97Z7l2QxRcAgKO9hnoTHNbaqdrL0uDUWcc1z2guFY9Dmjt9s3U9pF+Dajc
-agI8PnbTP8/SuMF+GMuvRZXxrkgNyb+Jd2fRZohbSKkC0BdOV+BpgwrEE66kTMUrW85NkXXDo26M
-pV9tZxGPrcUbbE/b+aIubrfyNdU0TF5scQHI36wg+sG6aaGlRA1/6FGJ5DXQOUT7qbeC7YHXvosl
-mn5qv9+SvzOQROK3fPY2CJilzhPMYcXbqynsc+Ss0GinlR3ifhg8Cr2itZAHNTZ+gW1wXm/xFXXZ
-sQiL2b0u0YJK2kYa2WpmkTvQ+rkCCJQQxYWTX/s1gAZeUQeubisK14Z9OTJDU2fGtLOfyiz97jYK
-Oze/L+5ZbQum+85Sjo1hRSxqOXRjZOTRT2z7V154SPodnjr1hmhTsEzVnXWLD9tlwTXXsjj9r57w
-r3oCAQL8Cv9eTvg/5fe0+d7/owTx1y/5m4TgBX8BOiAld/TA/2zd/C9/hhdSriil5DvYAZ6ALZPy
-dwkh/Av9h1LYtvBwduCzRF74e7TBsf8CPUsAGdjyDcAGwv9EQnA+KUn/DdDY4vAIGegbAhwXPMx/
-jd13KcnNJE2xOU9BoB6JPyyAyrGMU4a1kgYbxnB277HFAd7s6Orl/CQYnZxW+nvoU1pqzNwrMRp2
-8xKLvr0LIZf/XtjevIiNg/2ixpCnhq5tjFRUTLzMJJ6fU7YfJSZXVH/iULq4sSJFcpDWZPYXbZ75
-8tD1TZmfbKiot2oUafPqVYP/zJ5N5lsh0ZyfbZ662XtUOVoeicjZ09GB6gm8kpu3t/c1xQgHUUiO
-FI9KjaGQ0ZflMx9Mzo2scLTFhqH4Uw8+WXl6M4wRDGFrixiHgT+UMexX6V7g5XX1ffCZSKZBkwWh
-ameeVltkWXiid3aFcqcPjfMMBKtetiBe0WCqdjtigyCvHQJYWxja4gmQ4uFf2vrgcgWioWiLTqvP
-FLUavIq1dpORrk7wx6yxZvTM9jRFFO+z7sPyvBp/co8bAnVv6S2yLe1tN1F8Jrk/Q93+lu/GqErU
-O3MXYx2czwi4Z2qv3itNWoTnMinxkSvxt+wzOo5nhhh5syXKsZYSLu8/g+YwH9eXYPCr7FAHA9H/
-5jOWPrq6/WM+w+qUUpLVmj5D7LhECbSvn+H2acu5d3+NvNuJMdSaU3O0D7dUPEJ0+dFsSfkUCsT3
-6jM+P+a6e2g/Q/UwR/kJFE0t3jnZcvft4ip66PgT/ANq0RzdYY/1HSidgf3H04X4o6LZtnbhlugn
-0GGoqhgtErZujdZ0N+GuDI6IYPypSCyF4dLNo3q3jJoL0mBn8lpJbpMHcL6SWHcNVbGOJoKmXTBN
-X0M665cLvUxsdfDcYT5Niy23GY5UhcSVsOClS7AG63We1rE9l+wC1xjeJSgJ6Rju+Xar6f+0ScXv
-Wo6Fp1XCH8cpJ2k9pCH6F2c0ajNdBY1743YAHaAraq2IQwbB6yBrgKlN1kVkErCB/PS8jY0QsP43
-B4SIgQYqFXjl2Q4kc2yEAEHZt9W0Ji6NxRA+9ZvxeQ7M1t9ELiE44dggRVPjM3gfRObUMYlFbPcq
-sFrnr8fDv21P/h+RO4/HiU/SS7gop+Sw/lmanEtrcNOVD3nDkvqXM/uKZhJeOSIJUvw1cfdvv5fz
-zwSn7SG2fTMBapZ0FoazfzGZTU24+gs0yt3UomRJnqpWHASyv+0s9q0L/s3jIIw5cz9y4znL3Uuq
-rfL8vwfi/zgQ/Q1n9v85EKvva0NQ4Z9OxM+v+buoLv5CYTCiuuNCZ7QpDP+vExHHIkQg3xGOR2ov
-+PxHfzsR3b+4YCFdeEF26IKW9BHC/34g0m3MqbbV3ts4Fh3xH52Hocf31/9wHnqstT3phYj0sCno
-Iubo/Ue/oj9RPIfTrWXRXo1flAFevB5qgAPuR+EFbnU2M4l/Zz9nXTdjV0R25ENv6Axtvtl1QSmV
-aJEjELGt4ciiO233RedP7IAWbv3fuTIFVybC0btT9VaJYNOjqR+Emnrnhrd5Oz9ajJfpZUaRzPZ6
-HeliKWdt7RgheHyPo3geGApxleupOLHoYGjsSJMkOxOEi6QBuO3Ut5piT+sZ4kCETy21XKRjTCTH
-om+kvDHRYn8jqt3whyiFxcjBH5hGBgM5kqv+BcsacO1irdlrRtZpoizJBRcb5JA3MJwZyh/rkmoa
-/9byt84ksW5tTmPRjcnJ69T8ulK0AJi1CF29nCw9OP59nRt6EpalUz9Gph5cQKYdLmMXDNXWM0EC
-vkk6JO084W+cslJYu68pczHdEhOyG8EF9d59NkipurW8a21CQzF7mi9nj+w1KRyOn2BlCGnbeQzc
-fZpR6ZWfB8+u7ntG6Z3fz19rySWy13AennujivxmTnkQ3E2RENMVD7NSWMJU6U3XekktH/CsyhWX
-lSFSvyvV8sVWMzgKXIHsa4/Mos2FiSo45b5DtHDao+HmVH7heGWPeS5FJqtLX7Gj/OFM9CUTVyvH
-2q6K2PUEpVDUUgWkf366wtL5CoG+HbHccwj645H6H4NBKitm4X6hq1Wyz6itihoUiPPqBxyd8OCY
-tI0nP3VuEm3R9cBG/k/rDIodOxtpmVJhmQtdvfRr60Imqqjr4z1reK3KwBufsQZsShqGmeq0zDh4
-L3NTJC3gH79LzgS+DU1s5POLHptqZomnbugTWrUDF+sOl2wAVNzA+yW/afK2VxhOTY2bn5Nufu9n
-Lv95AUf7o+2Rmh4iTPvBB8l1qmG6XKXubdAIb96bAnWJG3U/uf3FsPlVP6XqXNeAZB9c7tcuBVhU
-uRTCexiaxZMjayyrGAn/SNUs5KUaAlK7aXFoKZnJBvixRIuO+77HobsAk78phPYeAfLMv1xjVXOc
-d0XxqFPO0Z0blSvQaBAik+Wbg+SNvrOCvtujT5QY8APzw19W/6MBMI/dJffjyp+KO54A/W702nK3
-kqP1ZpYd2NeqCy0X+F3LdN3jIDRwmgb7zE4rulDY7cdczghUsDXZwAjlER8AJcdpdO20Vz/5XJ8P
-S+Ee7IptmunamyBC1LK6gsacBCnQ0v4fCgXyPaTxp6aHleTn3U27uuuTjTyKET805FWGCLa0P5wA
-Kui7WvRih3IkgUwv1n2yoEGFTfFA+u2HY3od+7LMzuU0zqeqHnx+C7Y+Tx6zVOlizZD0cRvqDuwQ
-q2Ow2MnZAThEjtJ+6PjB9ohgzlkl9BgDTGnF91EzY/QLl+qpDZ0j6dh6IlCoIFREyPwlhsdJXs1Y
-vulQ6a03i0TYWDwCISHa5mQYO0nJOMemDpsDFtb04vphCWSLMUIUfbanq+i7lWwN3Wwwnit3hLvd
-NeQxjAKz0vXddbYrjBzd6J2KrrWAjS9Z9ryyDKHtDKEBlAJlJ2vV3QRWYb044+h8oBSX931Yhweq
-CHimRBE9owUdhnY1Ys0plxC7nBUe7dGqfll2OzPTzFjBKuSzj0AL7zK7q3vwbJEf5zma7gjEzS9j
-N+oLV/D+TsnwgxCLQ+XjPNyMKBOwJraO0cStbzDzZJcOz82uDbr6lDhpdWmk8Y+cAT88d7aOvQqW
-m8XpkpgPF5XFfJpIpIzZqTNbiJzVx700Ux/T78AkHJRBdM4HEPJdkKRPVekvD96WqCTpTM1oCYHr
-4qwsFDFPjl9xolm3jS2Ps/BxpnTzfIoqu3xrOtTGtne8+9S29D7wMme/GFaUNUHRB71oF2jNFia2
-6z59wsKovqoqp/qqW3ke1vM5WHwZ+wbVO8qm6GZoMuvc1rV5sFWVvPoJuLEK53CM5Ef9eic77Fxg
-1g7siCivaMRITtiuyjMp4DF2hz5/6Lq2uCt50Hywkp+viZbj1Q8tdkxsVDj3htYE9gmJHHsuHJFd
-tvhM9PhXIj6aKXPzWMhU0FpmW3iI/fUpyzQVu/T13UJWS56JMLwHbi7vqSrPLmEbACGqTOb/pvxZ
-HQbVc7v07TlWq0mOclW0X2DStnaAgJwXKhOy+wWveIWA75if1FYMm+NjwmpS+AQoec4MexlU9WV0
-aKaCoLYs5MBSXp92Du8CrSgZyGQv/yCYUT4lE0KQte11bKNakAL54PrUSnIBj5u+C+ZbllSaUB7W
-Vjo3i8EWDxj+uvc+xMsQF2Qbf+m80OeSLFOw69O+P6VZOT+2npO8NPmMOt7rsGx2QWQhI/e24YCQ
-83DPkrq6U7QzXKYVlxhTg3+XTT14+orAnWFAOxO/itjRjHg2nQUr0pDb649ylPYL7UIfAeXXdElZ
-+UBmsUfZ9QHsNEiX7/ZM4/ckWlaMoSDpEZZL/l30fncVOWAWv16K44I89mi3fQ8tSuLLZ7Ln9+cQ
-A60LMmm0vaZXQ6vmfQpeqwuCgHjo8tDwM9eT+w1NAjrUmtvncUHNpCPoS7Mkv9cWca5uy+Ro4wHL
-x9TEnp3qt26uHqWcvySaa3hYVPqast0/hHrFtoeGtg+Cuf4dRQXo/gU4QYmn1bF8bAlDRhPMIn+t
-22eTuxb3y9LmXK2XgS7VNftigL5sSPt7V25nQ5pcZ2kHmNnR+7yWm1td+Q+zn9sPtUjkeUhHzTpB
-2o9NxQ4GExfQNed5cr2OT6V9G07+PVa/i8rC/tXXfHrAyZBoZ6pojiE9AAc0mRrvbc1cR3zbDHAh
-QATMl94MHOu5a+18xVKC0xSNQxby0UgDSMfvv3NfnVlDL/WVtV6NH9nnV6X68FSvi/tTWzkjzjQh
-qGAAhZk1ImdMhuXJ57KZECmb7ETwYMJMgr3CnZIH9HjK6UwrbkYt8oPG3P+I9SR9KOizuJA5Zs+Y
-jezNGs/bh0yHb2FPdSx5WA6SNOJbpVPPRJha2qZwO1/BVA2Luc60nFwrgQ+twqR9Ru/M8BPPag3P
-YZKE9y1e8F8t1VnL3vMxle8UHJ+4Cbd3u019bxYntunvBM50onlTGt0Xw7QRprxs/tFruhB6EpX8
-SB1J1kOKUjCe+7TdFuOqXN07Hkv8VKGj1RNmOPVE/pNAe0qDGp+ghnG2cdCtD7RckHEqOHRiKAsh
-Ttyqep2SfPOFVNP2JyyKdXDvt2P1jkSErOAKjsie1kGSLmCpxTF1KvdjNi3buqitntKM1x1wI86G
-K/wJ/5FVpdcfFmphTrJDsbo2eRd8YXnj0ZWB0CTPDluTcdey+fu/7J1HktxYtm2n8iaANGjRBeAO
-93CGVgx2YCFIXGgtZ/Ptt/8oamJ/IZhZFeHJjDC+djWqLC0tyetQV5yz99rFCQc0NccxFSE1D8MS
-Qp4qp7iUqsJQR08f4bpZrPF7XcnLFXJJX2KHiGkcTsKuss/MqG0eFvbO0UmdtZp5H9l6VR9k4o60
-HfpaIG5mDrCECrnUnM5A5VgYFqfgLqeKYcJxa5HVjj5+I8m+geXC5ghdrLlQmgPrmJDHoUumNeHX
-xqB/omeVNl4kiqX1e0GAanHF3qXIz8aZUPRvCuZNhH3xGLOZQsIyzPskzgfjXAVyR376wEYc0yin
-C69F6w3SzrG/z+OQPSCksPxskR7TkLhOJ1ranUUyoC/awrow8TTHzywRvbgXixF1e2cs2TVk+O51
-UF0ijroIUVOCU3cqta6BrBjH9bWEYUp8BU6YZkE3YBVAWtoa6OBruyY+LaNbFCGIaJznVLMwTbgJ
-vDxEmw5y9A10t7BkNmGPgrllFomX0OQtffAjy1NOaxgXQOYQnm04UXbapstss+2l1jTuVaqy9cM0
-sRdf46iqorqU52k+BXfXPjRU0AhAEb3TfOcwe20L1TThOlrllQVOLdBViR1FdKPodjPu+9lY+A8N
-1DyqNywcwiCb0iecZNShJJn0+7wsHeRSyEbldCTtrn7CpkbjCXFUvFybMUyHTaXNEA52AATt+ZZw
-EFpKmp1rGOU7nX2LX9vVPBJ8j6tooxd9t0RulyconJO6KnHwUO+zrjnstOHXxp74HOSmorchdElb
-00FKanlkGFPs6zbsJePmjiWxIInaJjCSv9ZEk4WpRDY0Cly9U5UT2l2MyDRkcRzwRhQkRbX7ttZL
-h11vn4xnKcQWRPxLLrptBVOx38SsxQ0t/6T/ikGHdjOY2lw5w9OjXREn1idoyPrQaqxtI6skxRS6
-1D9rkZMihSfKL/UgorXiQEt9jg5ktlj59VBj+fKLPoq6WwRFg3UnIlRriBbaFasXdvahgugSASPs
-ZGOfqFm5SylmlXtLHxDmalbWQQhUxoS+uZHPzbAVlAtNXwULdOYQjfWSTIW80dW6uB/NabrR0kE/
-TWqt2Bk9+DH2IzbSdLl4ikFdBhPoH+L5qsQcXuq5SwtWOtnsT/EKKpz/C5tXAy7pjNbXyevxR2dR
-dKTYH5FpHkS0obfFKjcojZDCP21K5ClBxfZh3sYSfujK1Z0aXU5VK4PMglSHJuLyaKlDPNxO1lun
-OlJDiZOOYTTTCWauQaMtrg02b5g0DoPhO9bSHjiGxlfImOnVb/g5dBRBGhhGdG6Zq4Oa4ro+mmpH
-0D3WGSB1fqguYWM9sO9arW9IqfHBqcA40vwnvP2/dK83dC9HWcti/1zl235/+d48Zv/jxy0t3/cS
-3J9/9s9qn279QVVOIwbGQBG72on/Xe3T6X/Zrw0nWWWe0VcP8l/9L8X4w0A8ojiabvwpk/13uU+h
-gGjIRPj9ZV7Wf6f/patH9T5dpuZI1VAny0ZVLWhjR/W+uVnsNqfxS8GNwlOqmKP6PA1qIg68jmP9
-AgLAsbBSWUGd1F9C2wiWUt0qWnvIIwg3+IAS15orP8seGgu1ty7v5QhSQI2QqCyvCIsnEDZmx9Pd
-L2n93EwlcZW2REZ29b21k5M8xGcn5Zdj5dRYHwrPUKAoq+a20xr0Bpw7Ko0QPGd8YBIP5lDcxUsd
-jIONOJd2czSkXq8twFidi74ywErnm0Y422HMsUDi7XHoAptTE0RqTMYqsd9mLH830vCazt+usIn0
-RDYcdKrzMNIEmBPlRJ2r71qvX/Mhn3VGsoGdHLRWvEPuslPD7BTj1F5R221ShFiiIZ21RNwXWvUA
-4yF3YyM84c7Q60fS9H2sTjvzRqVHriDBq/q7rLOolnIe05YmKOrE7boaZanlgSrZQegJCof80aiZ
-XFNLt8bc3xayOFA4IC+cbhdc45ZjfdIPmFi/ofylLsrmhxAwm9qK1G7TWN7U5L7KuKQKCQrC+GOe
-b5cE8A8mL6k19mxc/aZV3dKZTywkpRTM9tBHXdOw/HJ5xFO0njjcfij3eo3aIvnaFuwoMeegSKCn
-AzCEQPOsJ+X2qpIR0Y33UTxtY6MMGh6ndRaBOG0ji8UcdeEMEWQ4tbA1mMj0GkLGuFbYHBtkplTM
-tKBSm92qtCnqh2Y8aaZxg3WkJ0jSUD15vOrFneiu5/SH1Hbb0mq2lvZNtAiCkxMpu1IFR2hnt0ht
-AKXqBPcgtim0qjRk3HJ2PFqV16qVb2w5eaC2EIQpTGfT+jJR5htQNOlJSFi4IbZtaJ8TNbujIru3
-LPM+FdVFtBj4fsddjFKQVEU/dniCXXiHBsZHhXrWhuI0jLpA0YwA9mrrD5WxVVp7zxe1xyWzjYW5
-t7OGklBzZupD0DuE8qVhQHOSpYPjZZt3PDj5XO3FaTwJrirlJZXtw+iwqTTU20rtsLBjzVhM1nXg
-KN6Mgwcx02aetZfYTrbCION7AOehONMXpBTILeSAdRFUS0h9Dnd1kE3heaZpJ9hEA90MvRyWBbpr
-8bXG9R7pzo66HAe4stqJDIqriqiftUoA0NZIEuy/RmN/D9wOQWMGmZ0Z4KoRcAIi4OSRXR9muQrI
-Z+fri+/nWrX2k9PvlR49k2h5vVtzg6+KJMwx2UCfI1y4Jbk4s8sSs45xbXfzc2lInIbjayYdZKrS
-eLfkdcZSaiW49wu97w0PenVo3TvjUC+b0Ug5hKANVLtvUqzbQ5Av486mXhuwW312hq7dkGVfIWp1
-MmpQwJfy2HyuEGShwR6Ss7y2X4olvQFcl3k5ykXaFUi79D7ZlxLlpTSDRq9KSf6kNkO8DcduuEqq
-5SYvuaA+rQ/T3LT0tzGkjeKOmWfbRCqOG20XmalvOF8147K8S0FEZ7AROrvgDLR4lhrj7JvXFmau
-bcuu3AL2YhJtN/RtPUobF+o4bNvcJG3ZUX6gSktovmskfSJHtkB+aSn6bx2NH7bbcFxJK4QWvsbr
-0TQvsW3pi3PdSAomhrF1+0Q/GKiAGgVOBFF2qq/AlbPU8jQ1x9O4M3ZYS4O5nPyyWH44+Fo9KRlU
-t6lNn9yFbVcsLwWq2spw9g5ap34oLkxMai6RqdcjmeHmqO3tvLmR7DAgbfUe6Nh2jHKOcwolLHmn
-ZInXmelZa5EROTQNiZBr+RWhrOj1AEjSbpkX2yUv7TmZuy9U/g6Taj9lscJ5Lz3FZnQ5Jc5eLwFJ
-F8uDoQCQhcpubsxInANnoAxZafASoKO5xtAIZeOksnNaNMaiYQiRrtm8nhoLVsP/9jmPdzEKjZsP
-t0CbtvrX/2ti3ETXj0X3Libvzz/75xZIRczDzkenDy4Te8Jx8z9bIOUPTg2mbjkrxPRdIjImIsxF
-Dn+KfQ5Kn1WW81fDU1X+oDfK7gj0i8X+yPotuKl6vAMyZMJDbNO0dfZA+D6O4bhZo+VD6Iy5B7jM
-tigQzOZjLPVdG8hI4UDKOyh0QK/puCkpNy9fUupxINsXKmaeSNYkAN2MeugbnaNFHmNFuqdDebhx
-VFmcl52l44inPQ/SZOBIxy6s+17VaQ7JJFnrqIszUbMf87lzIZqqJZjkspgDPZOa/KudFNVjJ+Ab
-0KzRtHETY3EmIlKOxWYGdXfZooONvD5qoydYz6APCnjcqASbAZWdKi/tPcAvezpYSz3etjKlFII2
-KGngC7S0edu38fwoWWKsN4Zhw3jMMwc3oY6fFjFQSa18xzQ9JDh5IlPZzXSQcDyNTaJCrCLVIj2l
-+dhE6L9VWb1WlwX6haukmZLclENLgVd0jXVWIBN0AssAO/9tykHL8FEn+VbSS2lBItO2igLLTwJS
-6o8SXawgkeW58e0xFQ9QQ/VrvBAKiQuzpIGdmbUs3yCWbQ5LnhrXS+HgZFSUUqYJnGiFggrEgKQR
-d5r1NczWUmxINE6Q6nV5LeMH/ko/UUbGOGfOg6nG2dMyk0OCmJ/q/MZAyz+4PdAWD9UXs8f6AGPa
-ojHn7DwZQpMOWa9f6G0bXnVduHyfh9R8dMxUfWxEmC2uMgG52HZlC0ldTAOdya52qFwL0xq+yYpN
-mIAZ663w8CTY3U2M3WLP3rNMziMMzS8Z1AzLx0nTNxvSKyoHj6g5GlTWGwjiwCjs7gzkCdgPpR51
-NjyiHR6EWoHyxB6dIqhUi/gyVhYBNmuWasBsUifddcscN16CngoKI/yCMwt2KHUa1oeJdAqrOKgU
-sXOQLmGO06TuxqskGy1kZrmmfANLxLFXrzpuQkQSRsK7wcuBc7sq0Wp1KkkIglgT1gsaopcaqbI8
-BnstX7NjhFFkc5RqXERNsDsrAw32ti1iWcbJ3yHbcVJ8V1utLtii6T3A7SgqpNCPLCWpvdmKeBeV
-poM9U5tlbwJ66GXHzQDT4HmaUr3ze6WxS8j2sfFAlIycBAn5suyBhJ5NEGEHUUV76peYKyg/96iU
-lnGMN3DChx9j35fQ/LBF3cMh5W/hRGf8qFrMj5sEbADmAlp2j5WBttkdSLil9Qtx4KK0NOCZVS9U
-8sHtCTOOiJaG3vJAgq81Lg6I97y1z0IH0PAmynCw4zCycfvMfRn7Bmbaa6vW0mvYxpVPRU08da2z
-KF8o0Vh3NaRLKPCpMc7c6q596uuqeQQVUA94PWzz3kFU3KOADQvetTmFYwbmCFcaKvr4qW7lDG94
-GVFCm+PScnyHzwBwwBImt0pddSeLXTKJvTkFX/xUibzN31y1IW+0IwZTG2dZjSMvwhYTmPn7s2RC
-uy6ZG4ZshjXPGBQeuBN9/k5b3E+Wy48HOxJYMfEbJnQv5JsQJFlDjgRWRAqn4IN0WhXwQX1FT78T
-gtH57Bw/Q7Svmpx313U81JEmxgkNS10MEFDxnNvthvqLs0Elka+mNxiymSmMl7VMuu2stNg3vQDM
-F1lV6IrWsu8SxK6bj6/9iMf989pNWnKguqnfmkc3WiyzoDkL9Tgie2mP8xTHtFUXPzc6/ygr+8Xj
-ZJ1V0XTKPNRXFdNbKRD+Mm3SVkh03DYIfmaBttTBwHnBRlI/d+yu3ufEIXxybUf5kKRRvG4VdBxZ
-1K7Atx1dXGdrlcOyisDA173Sddx4c7+4z7dnwr1o/Ue6Oy46Ge/jO/qLa2V/8p9BEVi9vVbbwv1V
-ZAxqG8TV7+KeL5vDgVEgNlXtTwY7fnWPr3B9vG8SMCnpRp2YGEwpOCIPIUCksulPBrS67seXpXx2
-XetPeTNU3hatla43s94QVO7VLh1Xt/Rwl/mPwUPr345u9Mlrc6xG/NsDPPoyU93MYDy9PkDhoRPw
-4DO4+B7c6rOR1qdyPOG8fWpHHyae8AzZxOvVGb7sjSete4fF9pzD1i3u758EgX/8HpTPhjuqlWka
-shDg5kyp3hMGukD20g1AobN4H7pZ8OmzO552jl8Tds5vn50zwR6jI9W6o/fE1+A+F+7JD+/67uNX
-ZP3R/3wPEd2/H0XHppqRx4Q7csvuwqPw7RXep0/q42sx5RWT+OY9pGGh6Mn6fZ3Wm6fUu/luBI93
-19onr/tn17L+ijejTNgR06pgFP0yDGqyiu7oSZ+En81QR3LboxfclI8mCwdNkt6st0za0Rv2cFC5
-z9YptuLdx49G/Wygo4mCbpAAE8xAakBfkqkQSfsZbjxf8UvP2BRu4x4a96R3E3e+/3hs5eNJiqPb
-+3s5ExmTtevLji1hS3/OvyGExf0eupUru+VWdcVnt/XjuepvKSVRN+GzXG+rxtQPP5yva9ix6Hro
-lrxqU2wiH0eo99liepTSerzgmK+JiW/eGktXerNe73Llf7sDBOAV7svJxeMn93Od9T76zo4mDyoj
-hEvU69VdqyftXXlWn2hP4QWKcHqp1eN8U5zE59qFcfPJuOss8dG4R7NIYkNt61rGhRnsZeflaehT
-3HEN7xZ4j0/S+8xbJLs/Ppu+Phn3dZV4c1czIIGDnDJut8V94I2bMtBOVf/Tt+ZX48D+WJEiBpXZ
-FSb79ptvUzsv5HUxpam2UbhGzXcYUfecQ+7BtLlsLwpvCJpA/+LsP7m3v5rV3oxtHM2dcZ3M0OXW
-a/TRPd9lW0zx29lH3LBXd+HPXcN/O29vOm/sN20mmn9uvQVl/K//076T1//8I3913Iw/qO0rqDOc
-n2UlXoe/wnS0P9RVIE+1CasESi2+0H933NQ/NFxlUGkME8cazbD/1JsUB8eZra3GNkdRaA3+nsKe
-8tS7DxIszqr8R+ivmwo+NvvohVV0QfRuCmpFWCX63hRRZ7UfO+AsVMvGkIDCfnIgxa0tFiRBqbMJ
-x3b5ERNChirQUsSLHKYNNXcj6aPD5FDt9alq0+tOwYd11MUVMGiFZC75JZqtTrvEoD8sO9JVB+ck
-hI6mTGbtGbBig75KaoTaZBpu1F6DzJJh0bJDpduivm09uhovSQ/0JMv66nZu7TV2IWm/L50uPyeS
-Gns4bIuNPWn0Dmq5RoRu0MVQJ7PD0tt1aGTk8trR9cGfDGBlJbjE2XUWBN8nnSaNT5RWBKU0m8bQ
-ZsBPTE18qoBSIKbA+5Oa3BUvi1VpY5qJULGhO9ZXs+9s5zk0Q0Tv+liNJP41UtxuBwqKaDeiEn+t
-pImxOYWgYcC5MUEPIoouHAFdtWublyUByOdBDsJHLRug5THaJotPwoR5qHvwK4MG2xsMYC0u9Vmh
-tGFlUKnuC4moyyJfc8Xk2EBEulASSHEVrDQ2opDmfKNLkGx9NAUoOOgATjeJOSaPQHRQKyZNBXZG
-J/IZnjKVmUMUrjQaGhyrHDGvDfOCfFD+E4nsiOJ6MLQxQBtDyqk8lJfWaG2VzNibxBfeAxxj89nR
-zBmQmpwKhHqYXIHGEOvQ3TYtkgcIFw3Cca1G+hoKyStR1PtFBj7GQjVHfkjTu51UPSNd4iVU5/ZL
-nCU/xCL2MN4vIQLaOL3wxiGRcTu5O6tqftVLbgoQp+NU3TpJ82Ll0AEOYzgBONAgLYSezRsfOGZp
-wvsLs5q+YVKGxabKQ/yTY5lmV6IcW437lI43gyy42gp55gnpnc9E5vXRFnOGGtLNKpxr4EvR06SN
-EWwEjfjHPXkez2WKZ34uts1g7IrFfBFEYmzsIqFXg0w6MpcZqS9OBEMcms76krEn9GzCGfcAL2/a
-TK7cLhYgPM0fxFNdZTgPDqNi/yibGDy2AWxYzdg6Qp0k1cULZ9lHnHyD3v8A0f5xsu1NJhkBug26
-rXXp4zTINjIRMG4fO7Q70bF6Qyu+2AiSJD2FeoIuvwgWTVWNbWFNzqGG/HFq43XIfdwAZ1M/HDRT
-u+v19DyTxlPeeHT54KnsYQuLMj7p6o4gV6lwkgszW746ifaYI9bDegOV6UqKzPvJnIo00COtvsGC
-qv3I6JQUh4y6CC+NZm7VWXvIcRXyjobVcEIbvXwBxDmk+6mrY7HNCVEBCT3p6RmlS+wTNE/G5ou2
-xP3FbJNUWuW1tAeCZ64KQaPq91OuxJtJbQeHBm2H7OVAmpx4oiJmyFtlJpAJ1iY7VqI1tdohMiQq
-rblw5QSrqpfbeeyswTuyOBlpSMO1kgSJt1SN7Dk5mzEY6EFsNLpzCOuGgkqOIgDpVUXPkKJ1rtau
-IBSlwwqqqJVXLSLSPKfJU2AAEVtVYHKoBK3GPNPq1sabVMx5kXop0V8OTkdQQ1Th0upxnEJYl1gZ
-b+baHqZNjzkn5cHV+FLGCh1Qi3icDKZCGm8gc/Bv9dTINKQIM7NKNLIIAVBqmVvKOMSjExnARral
-baOBLKMJ2hR8DV1v3CRe2YhiduI6MMIUKquuo+z8mWVpw3Pu92WSMPelaL1qotXmFj+RNg7h+U/L
-j4y2eW1PqMxBY1Qht9R6rVIDTRJdFxBMhjbO8azKzreyBMiRIuVpVs2yB3fQDDBqRZiy+v6BnOlz
-Rc7vQ5FdVCPMgqgxXMCm50LtEDYtgFFp7HFmN6dnM1zMSwLIJVRPOhHCQDf8QVa+2xgNg0Uq8ZWW
-4YJwPk2+ybVmrmXGCKppiLS+US+qcLyZhNH6cUYd1Om6eJ/iJL0oKWoFUozUfYYU56NTO4tF0wd2
-kqsedVj6lQimfdYA4xzPE0Vlcr3OqcCR2gi5AB9ybntDn0Hexc8QIElGo5fq8FSzZfqixEbhR6Fz
-qQiJ5G+9H/yYH7EHyvW1qFamj6nFJ3Fujxu1rvpgccT4BQX1FNharga9MT8mY31XFwp0hNA8axW8
-mvUs1ydjNMrXKXVanEvCxwZ+W5SZfOKIctlhpNMO4B+Zc8Mo3poGvgRT7ljuLFYRwSu+qgJ+KL19
-kDXYIzU/xVMSTfu2RJi4mOQ42MEz8c1K5LdOl0vkd3LpodnQbVWxRWR4oS4rtMhbe1nmzYIYYREk
-kLEm0NsF08LnNJ4JXf3WAsh2DdQMhwZ7H/0HzThrh2k8xLnck7weArSKzcSzzCTfUfVLsNfBy7mG
-l51c9IOuPvdxkdxF1gA5ScFdR1z5bOtXLJ/GTuTqhLqD70HBPjRuBt7rBx22k3AtRW62St7T517s
-Qds1tHe+wsohslSGB1XwKS8dOJ5uleBiZH1IRN0dsoRCujtGBfYVm5SVawUB0J02pfnXZmhwgldN
-/iBD4EjAVE027FpJu2TlADFNSlH9nXcoG08wwHX7vpT7O0KRxpehq2dibopsLB91ZlxeWSW6FMqi
-XFDFLXqf6JeQXrFT+CuCuYWItnyXHGDM9mKC3FdrKQCsIp3iEElsuDJVdb3K7NKNLhRkFEWkQDBF
-QNxtgJtq2AuYrHLOUGoIuDQld+8OJ8mLiVX6QphT2N9KdVOqGrBA8mA2gwB6Ei84gTZzB47dVZOo
-VFd5rKz7diLi65CJF5duD2uOdX1fa7jLPCjx8tUErewJ8nm2ZbFT/R7lUuMZY5/fdoWuWH6rzd01
-vJv8sRswfWGfbKJ6V/eIKeImnXtAW7bygHciZwKLMkIOiKvbWGHenHUlAbnQ6Kr0kqiZ+gkcW0a7
-qJy7hN85zN0Wlpl8OeDtP7AbknOIh5OBJS0eVZpVi9q4FkLIp9Qiq2ePvDcEkjaoomHnITl404je
-YcJsU5UYR3qf0ctoy2yY0PZ2xLRmJZ6/zDKUEwKlVib6wLQMnD+m54fNDh+86ltSpi10Oaw8vszU
-5dloxdeFM6E3kGmeDdkOZxT3bAEfvtfSrvZlmSVbJy3LB4JyMOXlQhNsp2QbZ4U1PrVyAeAfwbzM
-d4WxjA3OhgWMZNmFnp2u5UztUcamLUBMMm6lAZzcVufkwTfzSjQrZW2Vs0vduLXLlq1M2bziBTGO
-jRsdYkp2Qj3DRvaEREFnlffaqLh4JSbaMwqvsZ2gCNbCQdYVFe5A9oLbsa3H2VgTA0+jrOokoEjj
-UiDFx3A0LJ4zxcXkSapejtSqc2iKKWD0LwJxXnLXpMCuL4vF6errxE7ieWuWwI8mDZWNq3FS5bQ/
-qsiusfZABsdvVQBuQaE836YGfRskd3n5kgiccbWdbIoaPFhe9tZ9H+UWYAoL2tSFZGvrIUGDP7Bz
-1JKgS04a9T1iwb7a1jkhnGTqcTNAvC3I2kIhl9taYDwkcNMZX+Z+uDMS09oz94KWdBbzgsAAx3iK
-015XDwh0+3tdj6ugHcruESeyWYOT0QD2oGUMzwVrzYMKQ/MM/XNjYaILz7BjLAQ/L1UpnZD2looN
-DKMw8hY6VeGKe7b701jJAaoLZyY1jDW6UYNk1pC3cK5IjDvkzHBthINn9gvejGkJOjGDZESrVO/K
-wjKYq8piAPPsqBV90QZjb2WMLdoukwAoV0+KUtqSFafdSniJAo0evJuwmZfO1tC9TdHW5CxMKli7
-U6XgFuzSyc49q+zM5gm3Rwk1qBKtn2hGO3qIA7R6o0pT27A5W8rzwpEseL251qJAT+V57+AboxmK
-YSWlvwruyQMSrbPaqkjLN2LRRscPDa0aziprqfBTtkQZ11ExblpNlDTJSPHzyHLG7rluypUgK1W2
-SmQkVzt7ymMbF2cjw0eQ0gWOQ4gL2tWIZiCfARg8SQFo1sE/2orIV0/kVWKpRKqTQ9KBq0C4Lb5Q
-3Lb3fOFF/KMc4sg4jVqp5L0NzRI8F71Umr4mkvwtqaLFlU7r/6q11GFVDk6PgIHvW961yySOFMId
-Qo6co15qnHbUMQnGKt2HMXvqgxL2DvwzTeoOhPbh4CYLtT6LpaF5MEZBOIMMyOq8q7hNHXO9Z04W
-okWrpWXqFLtc6qE/KdODXRffRB8NqKgG6YHjtva9F1Mdn5d8T+KSrx1Wu4WAk8NvvhNLdGhHhE5N
-iQwNr9nFUpfYKOubbNYwN1bWiS13lC/Tmg0n8RB+osqwIok+U0BmbelIw6HsandUUH2j80fAl/VX
-BSVCfyE1E4L2bHh93ZoEjcu4O/PossKn5oqKQ5REDi37valJL2cnP9h5eKLWOF88u5vYPEYmnp+8
-KTCt69+RQTj2OS/oMAdt4uDu1DWZsz6KDpSxNXwwN1NBJnmwYsr+knVB8YweBsE+THtL2uvJhHXW
-krvauBGRUtwg219qvxd4fDko1W25Jz4VM8/8ynnUX5mPLAvwH1MNrutsGVAhY/SKlwlCZHMLtA1w
-ZPIKkUQ7z655lE31wXbEelAnVexp5F+DckwKLboCgbPyKMPCDqxXSmVtrpEvg61ku8YZ2DW+wiyx
-vEawtiAv4sB8BV7qr/DLuCNAI5binZM7xOSmIr3jYUHKHF6pmYTFotSPV5imgrw49SEVKve1qBge
-CH284jfjRF/8ToBc6WPE/VmoJLf5K6cTewwTIm8B83ZrE4rwk+nJHEGyANGiwD6jtEMJFC82lkyY
-/5uIg9jkVfmKCwUAqj8jqZGwBbxSReVXwijJmcl+HM1mn5IDFUjLCiTNE4Lbf5Yu/1tMfFNMRHD0
-sYjt9JGEbvGv//tOvvbnn/qrnqgA5dBsWdYMnf97LRr+WU9EwQ91xdZlTVaAZpirRu3f9URE+sjp
-HWqNCtwrTX1bT5T/UA0kC0SS8QNNw1Z/R8F/1PLSqEnqK8Rq/XuAYh2Xv9Wk45cjJnWbRGoWj2CR
-+OsaM4nGuwr1izodgEKktoCaa2UZ2Udvqq8XP/sIbyUfx82TdXxjrbpbBEIiC31tQL8p82sq7Lmx
-k4EKme0FNc/0RuEw7A96QygQIifjOtVyMXKiGRFwq2EYWq7UtvUtxM6i+r3+388fQ9UEzbSjcG+P
-6vFqxnkFmRupajVblGzou6fRnCWfBgFyoTlMT1v7DgSJOPn4Lqx9uDc9lp/jwt0xaGyuqOGjhqCc
-O+A6K7KS8X1npddRWlwCZ1Di9pPbfdSUex0IuwZvlaapBhXk982OvCgSmFJF6UZtH97CptY4RSgO
-UQGx3lvBx1f1q8FW9eVas0OLAWntXWelwzAipI5MF1LG5JNKKfuzsbAkfzDL8ZMu1VFzbL0u+n0M
-YwB7A3+z3uA3b5ES6gYSPK7LSqzwJemU+dburCFIiyzbJQnwk9++NJNCvm7xIaq2Ih81ijNdYp2Y
-mcFN4tp9SVBIpUrSE3Jj67//yOyVA8VUgZAGov77S4tNMF9tlyBkmXUMNvrUw3Ql+ULbs2Npf1Oz
-s95IhKxcGOA8mW7F0YXhhTNJ2wT7SUBG4oXlKsGX6mkkWsJu1ZcOA50c1EhvftrC/lEbcdTUeB0X
-zxJDApcygem9v0oM10qmait6cyxaUnghB5ypswxesojF7Vjq5Rd7ENL5bz9GZMPo8Sz2/vzD0ecw
-WAOaNyr+Lq8ploqCrxzUN+o7i73Tx0P94g2l/aIbaEqY8OE0vb9AdtS9haeICmRLDCwAZTWYzcHe
-9Q3Bs2MRST+TP//xhv7i42PhQNvFXIbZ63i8erQi3JgktZStbu5VieN+Hhn4qWz6FR9f2i9mL5sD
-FFEPFmYwbLjvL003MVJEc8hmGUbCmd7QCiHBTWz/F6NAlTKgMpumc9wPlmnoIPxlNqkT8hHJg7YP
-Anz66cej/PK20cJfAVYswa+JEW8mkpYWUgMwmFEyiNoemq9s3ulkR3LkJ+C9/mSK/NVbgXxcRy6P
-y0dnKX83b8nyYjYUzNYXsLseuuUyL2uY3XjmADEhXf344n41GgQw24Edpqv6alJ8O0uS5ZuYWsXH
-3cx1dFLEjbZtOfHv5WmqDvCb+0+u7hcvBjMyXzMtVcY0jkQ7qaWS8CXhYx2HqgJLK2R18KNSCT9T
-3/3iqTGEhg4fyb+O3PL9hU2Vrogu5jueBiTIPv2B3rfS0qb6E4fN9W/fRW6irqjm6i7AZPl+sHBS
-pqKLyGU2OXUAfCCS+blodMI8Qwl5q5sNuvj92ZEVm3cewSo7RX2dPd+8lUtp57i7IFQkQxx6qcQ5
-bA2iwveDaSekEjRNyuh/fJm/uqcK28J1k0lfe/WXvh1TdAmUTAkjE2nUJyqFxk2WE2ia6upnSo9f
-bEFZvv8z0lFD26yAPVNtpoVEP4hKPJXtO+Zr7Dq0spTG7UDJXYGSLJRNMg7GZy/PL5Yex2Lyste9
-CmvM0c2FA2lnolWIkpqWLlhmQ7pYsNP7tdHWm9VMgEkzDu8/vru/HNRcpxk+D5wjR4M2uTMqsQ1t
-oh25qbGTpbf5bN4Ks2igrNTadiTJ4pMx1/t4tMtcFwJm0PXA8Xeli73gP9NgaeZFTV+KCDynmrJ7
-LLHJM6EA+Tcjl0lwleRmD4Ep/2Ty+ftT5i1aab5UVDm6HE8Gsk7YlpaRHdtbk3IJbmV2M9FE8Kjq
-/nSxpXDTgpg/lar2k5Xw77PQ+vry5RishVipj7YWcLkg1U7wn+FFaefroX6TaIn6iZz873OrRiwR
-/iRoxRr/uP6KN5/oYBV9HKvQd9lgi28RHB7hY+EoC/DSU/mt643oE0XY328owzgqs4HJmmgcT3qC
-Po+Qqbe6eUetAYNRYVw4JHDhQ0n1eAvy2gApTDCMS0JLUn8yPfxq9NddvbKK55FOHV2vRGUJSSZk
-mKrCVmJJFYQCiGxi9KDoxoobF+Ey+tUkU+Yda0n5/vEH9PfpSWNNkddVk4WMw+P78U0i/tg2M2mo
-Ex5H/veYggkPVLgTn2w8fjES9i6SrIx1QA7y70fiLKE6S8aqWdBALMixt7FUADWCTwl1n4SAjy/s
-718pfn+OFewTUedjT3g/XJtIaTJ1NNRNskBeWFAAB+HPVtJQ2XRdUQZRPtcP5CFUawVav/t49PW2
-vZ8jGN00wHiym4MFe7S4db1JRHHL6AKPzkGpTNklQ1r97U9yHYX9KRth2UGj//4a+ULsmFTz/8/e
-mS1JjWRb+1X6BVSm2aXbUAw5kRMJJNzIgALNs9xd0tOfT1l9/p8MojOMvj7WZn1RVaCQ5PJh77W+
-xY5RGyFYS/cWSrZx+V/cSmCvX73wSfg6upXBdX0kDFzE1wsAJVnHMGdMU6VnJrYTX37AyEBASI4Z
-m+2jXRW0Vq/StSRVyES3EHZ+fggtzHl9KIjsoqL9x1tUJ1gNMgEvCPqIOBr5A2XABsJXjYCEjnSp
-gvLWSxS292Ry799+hKfGYuB7JplfLhv74+1plWcm5y+UF0Lo4dLMO5RMlltt7VmXl3CpzKvOGb0H
-r8+BF4j0nOr7xBzDto5HiqMDZHNwNMd4ZaHoIrAZjycYrJsONso9QEPoz+Yk+ifbNjzgPW7WPbkZ
-yJUzN7/+7UefAnq9tdLmOKTUHc9wOAuRW1GO2VhU/j/zMjLih20+xkgi2hlQRRXFI6kX3n8x4XDh
-EMIkPlWKg0cDd1zzZxLFoWC2aNwa/MJLFUBJsoQs3r/9gpEvHt0lxUmQwYJ9z1qD85zjTxGmOt+f
-JFJzWPCZdjSGSYS3QooZ2Wx39iEVTo2Az8YGvs+CMRn3QVGS+zk4IcI+by6sz2IMmjpCRtAs+8zu
-gh/13M51RKTeRPsf7dZlmaynGTJJCCFSJgnIvgUmC9aFJ/rNLLMyjoSpke0sE2FGdixp5Bg9nZBd
-xZYm3wwq9X4CJM0ppFttJXDry+4dqBEhtpjFSKUBH1r8jSgJkC9dzwkYZaehQiDJ4q+leTB97fys
-JJSmHogMDgdz7a9NxIVUwwAL3pK2A5JAuQby2yTQN2k1ZeLaEmbSbXqb3NpVTbUcep886Kgk2s2F
-dWLayQ59SftI8h6UcTX3yfuZXjZCSG7z2zi6Tsj0U1YZKFxyv7dz6HdXBu0ZCYTBKr+4SQ7/o2Bb
-QVQtcNIrs5xRf7jhWN8sfo0EKS/6aQeFFu+UwRLg4WAEpZY6RQYCsh+9kGohvPpUIvfZTp0hEZEl
-TVduB1eOV+bokbEqOCLA7iAg6WHkEDZC1JAdmd1BWdvEGU60MYRdNN9M0H0Qla2xavcssPEYYQuF
-sIQ11jU3dlVPD6VQwts5MiSzy0L00G511rRNpOl0Pso5FBzwQjk+pGVsmJGNPOM6a9n6s7d3mEe6
-ypK3XenY7Zb8cQLPNO2ip4o+OuCAvIWZgdzluW/E+MlFtoasUa4ha0G8KiSdNLa+5yrV3lYp+tC7
-wJvwaCLaGPUO1m4/7XO/QaRV0OS8V76FGijrU6xYxIXDiacHxOYIyy85P6nASkqoSD3NcNVm0mcW
-b23515SfIEd0vZdEub0Yn9OGkCLEDrWF+JPwEmL5xsSH5FmhUSSvt13kjj0rTJWGDLNPAfjEfKtI
-QDK2ATGQEllli2TWLbvgoercdCDg1Oi+xC1F902aDMttAbeQRwUhSm5sLTwYZ2EcPlXhgN/WUZ6L
-LGqho4vS1+iugxmd6DZdiIpCdqq7DulaRuLp0M/DE9xohQPdn+R3ZG0daF1SXL8slUifGA08BgQH
-qCRyc3oGu4NsKAmG0F4Zmq59WRDpjPAhVba1Ra7UD181/Bv9E7Og00ae72m6fX1jVrtYOLrdxiSv
-lwdVD5b5XLnx/HVo+zohmL5NW7i3iVE8tmDWikPtLcPKWR447sAFLrARWHHTH7RAOPnRQvhqbEkQ
-isurriI98kJ5beZcK7I5iY1Z5t4FUokr+DkxdXaf1gKVLnICdKmw6ojdkr0ZfNL4/K2dqyoDEYpv
-lsiVqbaZG7IDxJ0jZs+/G/PaeuraFBUJjOomvYg96IXbXk52/y5AGFU+J3jUi52dk6JxP9ZEt2+l
-jru/x2msnK2ZLyWnFyOQzo+OUQTLpvTi+cuIPICULZnOaz43et1NjrSZ0EbXGr7O/HN9F89UdO7i
-tqT1SpaEM8LK8OKlJcbA86v8vfQRdKMj0m55mTMDkj/IPAUxqS6zd9O4TNjvK3ac77Tnl+Mhm1xX
-R7nszE/GrFS8Cakb0z5ngHcwOJd4PNCQpb9e1iMCMaPojLvRI59jh3FYZXR6gcXcggBE8CpzIsCi
-xQQCve2XGTwN3moRwyRqrPuubTs0SIPShxyYwxg5wkhvVNU46d5BF2lcl2nVZZ9BxeTpbQhSbOEP
-kl20s3otHNjGBZ1TPYaWvpMxLL6vUGYdZxeYmY/HtXLrJhqmXBo3Yz77P2NoZ4iKs6GVe7OARbun
-YzWJhxpg3XDtj0WJ6N3n3e9laOufLqLg/qKu4DNvydYcB15ILPLLxLTy7+ai2gwFsomsy2JiC6Iy
-rGlPk8+nTeQrRitQ08UrqL5tZ4N07il8tJ0EBoCtFge0bk+vBvizOaVbr1VmRqjw2JHPQqgoVMkq
-rGjT0/sATr2U1WcBOoG5Ie8ku5Ox6cvDNNtq3I707RF+U+WD4sgtRfHgmd/EuPqUMiLKL/t4IXnU
-iy0DvXqY/5gHMX/yE52882M7vQtNWe3tMizurJJMjku/kp2O6sHhHYlytpf90GR4+StA0+OtqNCU
-XNbunNuo+OrJo4Axz+Z+snWrIlCSkvAPr8bq29o+UgIL6mq5XWZm56gnHry57OximYF5lSHBYF7l
-zbvSAa5wW5mqQqtBQi41CziqYue743KlB1UUF2IatYEoDYfjZoiNpKRrnaG2HcuKd9MbhRMTO2jg
-+u/LKSuJ92ic4CADvy15/0HKDykIbr5URKyUCNrXr6FhMdIR3yuqe5r+bXdJacN9r9NsJMMt8zWj
-0V0WGvOh2dmbweNiEaFawkZMmGGEAidSXg9zHXtbNPQSpgYQadxSdA9vUb6xz2jNDnVa4XccEixA
-8j/i3LDe+aItBYdqfh0aGgRXFt9Ff5OOU3k3DElir1nybUGQdccypiazbHesw85MNmtMvAmi1/ZT
-k5v2QxXMbDNSzAWP2kGSBJbfw0TvOBnE9SxJHBlJVzo/6X0IfF1IgjNABG0CYjtwyhQs8lATIe5P
-ZpQDgDABZ3XTg6uGstgr4K7FhqS4TESG4tjPx66mG9wBpkUlSyc/U1ekX4kxZslx+bCgL1QlbY0y
-Cfp6x9Tl5XuXqR1RE+1NeWANzh8W6OmwwkffvxNe6+fbVq20g8prwy8FnydNEmTIH4lf7zFZJGoA
-9T12+h5YspFsUiQkNwnjCuBOmyEZq4LYu9eoJm+ARRfPWmrxDY2Tl2ydTKafGb0IZTMvqK8mlGSs
-lZ7sCtDFdrmOIGOuogA1uEPCQdfcaqsPb/0pQYHPMb380reV5nmN/fAdRaLZ7WRgi91iK7+OJkH0
-AFGI/Bhi4Er1k/zP/kPdyhp1e++SVeDEA5ChcqxWYIhywdAayXeA+EgddctHg0IyHqwo70wFBMhP
-Pxke+BG0mjHkzT4Ztb+t2ETMN47lZJeyyga1bedUaxCdGWiuUEEY3rWl3z0NS+CoixaFK0j8gfl+
-I1sO2bfTIlJ2XogZSWmT1CjRNRakvHtVUndsw9KOzVjdorYzlhxYlI1AF1YlEIy8XlEQKi6iYeCh
-b1CcMZYcpaqDDbrU2cVtSjyFpoXfRnR2Oa0YAxK/Hbp8tp6LuyDiorZbPi79grbcMJW97BSoHOeC
-dlH/POBLCbd1jNBlaxg2qvUAwfECdKI3Q1LW2DCwZqj8q9Gna2oF3LFxtwTEUVBXlPy1TYiGRzS5
-Ea4ZAfMSudbi/kw0usudrgAe39oOVhf24JlpgSFIiViuLZco3kSl6CaNeUrNrbHU/O2qdhD6MEFM
-2UGw9H1ANB+SGNyz6cCFkzbOhTX3uYtXYmSX0xCBx/41VlMIegZYNNCBPv6YuoHRQetyqw/NrEq2
-nsJZjOuqTn1vi6Wqe4wHkS54WsBNRG69yqpYK5JlPw523W4nEEA3ZE+5LXCwtEVl5/fCjAKXqJ5N
-Zy3jyiUJuuAqCLPgB/s7vjgV2+zHR5P4PoMizrjpYaPdk7TYlhsAe9l7PBJ+t6HxO/wsKhW6GyMT
-KILycSDauh/mIEUonC4/8zkPr+oJauIuaCbnsRjU8m6Rpf44t147M3sZ1UWwVEkf1SP+rcivwhwN
-UEzSH3Qi375UVhJeT8SRjhsfDdNP2DFE1y5gwafII3EFPwhhP3nEqskBAV0R8cRGSO2Rfb8HWShh
-C/q3B6pZMeUVpHB2Ip7TaHSnvI9YzhBa1aJEZmpgX4OvEAz8kwZ3I7T6bJXKK43hqag75LuUURli
-Mb98RyJU6oPImbBLtB4g5WYNG4gKbc460towGQpL7nwO+rbBrsWkx99tICTf2NaSrIpZiTa4nyS6
-S52jphWJx4CGiow2ODdW/Vct5fTNHHounIRgN/Z9njEsC4MVh42kq5/0AqH33gkSr7powtREaj3O
-KGB9iQy1rjHSbQWo4JEZL/UFp4NB/+hXYZ8uQ34glUBOKooqK2Ys+0WUTEj7XY4g+4M51ZxcGsJg
-ODKIMMfICqKF3Kty4n6cBAAw5MKupJDQ6R+5uT7HxpvScTckJoI3DQLbjXK356DDvip9QEO8WOz2
-CUXZ1JnSP8zE5W8ygtKaL5tKm8llnYdcwVlGnGSsduFNX+lK3OCg4XbY54Y3YKn440OscZVlpeeL
-HVvr9Tsctaf2TrUE+zluWrj9rWX99Ptq+PZ23eGosuOimiCfD68mhC5Mt+FRTd4jom1sHVHxtYHn
-W8Hrubwwk7jl0ceQgZEqcSBzoQBPZdtv3r74S234l8rOP1dfS7kuIUW4No/qSr4bx12P9HlDbrbB
-bDgnWw5DNvvi4GPXAizpJLabfmySXckT2dZ5MB9qKFM7WydQWWav/2Q4jKEzv2utFL71u9an9ksP
-oTY736OaXlPMIL1411sxlsgqrKcdcKyfGRJ9l/FtZOamF1TYrRFnXIFgd9NXivMYsPLnt3/RUen7
-nwe1cnJwmq4KtaMfRFSHxcYpp/RdcUiGvaextLEa0AYcGr85U/k+KkW9XI2SJgOCOirgmPXx/HL7
-rXZrXVgQwOfcC765GXgxAj8rjchy8qZvcdHYZ0q3p4ahQOtCcc9fhWhHpdQ6joemGAI2mF1t3/vg
-mDcytoJdMmIBmJUZHto6lQDu/TPCk98vTEHRwb7LCOT6x6q32Te8UrSwf2RNKhXl1PndjKboekKe
-vu+nboT33XWPBCom+7df6VFJl4f8+spHrzQgXto1a5qAvZqbdNuAjw9vmQimO0D5ACZ1vLDYdpaX
-tR8qt7fVpUoHtMZv/4qjNsM/vwKFIyRiMjwxU79+1WTcNGy4+QJL1tA1NsK+W+X3l29f5fcBxb0C
-QWYw+YjCzKPXy6UzJ+z4nhxtjVeexSoeVNZV0Gn9Xji2ODOafn+0NDcZRqh9BT1z56huywTshZ3D
-TS382y+GXDPFik4eRKFJJTNA2mCgZM3yRgnYU/5pYuD6ZgVzGtAj22diPbrbwKVqVBl8Pv3I8XWc
-CHGXDhMVrsmLP3+u7KWJCV6VYig8Xr+9Niz6fspo5cZouC/LPLFAmKwu20AYnJ/7Qojb/+KK4BVN
-SFKru/7o0VqQFDtOuPWmTQ39PZ4NA+x/jrbcw3N538dzcEZxcWqAoiShqbOKd/3j5pFGIINfIGEq
-7iXLeri0A65CMaj6zPd48kKo7aBRui5v7ai7SKIrmYuKZ7ngjmHzNrJhnqbuzFVOfQl0ay1EhIjC
-rGNIjxbBuBQpVxkladAACMPlAkM8WeVj19wPuB3PNE9+XzkAiyHEQU7I9oEO8esh4jcUUOdgHSKW
-Ch90vXQOyZ6JMHayrOBVvT08jlo1L9MJ4X6rBcAVLnPq66s1oSwlQiqGPhTYrxmGKEpkBceihXSi
-oWZ/xB5NfXz7oifmcFYrC7AZE7hDg/j1RZc4WByvaepNkKXpnlccA2qe4w1BtHvCcgKsM457cJ0Z
-PuHbVz7xNvHD0KtBysHcdsxcpzLapEHHlz7EMvhsWwVoy05a6qJfqJwlBLnv3r7giUG6zmgo1Wg7
-8krXH/TLyjzocPTclOpn5RgoRDRAdWk45v7tq5x4i8IGIOXTdw6QXx9tCsM5TlbbxirUKKyJ7TL5
-RwcHtiee8HGOvxcWZu9Nask8PHN/J6/MOuRarEd0co82hHGQz5R4kYg0hTKfB4Cc+ASLOLubEQZ9
-Y2XB74hfW8VnJtITXwmXM9nx0Orjjo8W454OhRgl162Kdroaahxj/mQYDySeyzMT2olbRGTlIOdi
-MoP5d7Q6dKVpL5oArU1Di4zIMMM5TB7Q6E2WO/ZD22T9c2GF57Q3J27wpTOOmhIduL2mgf86cIir
-l2Go+EYy3t3W7DGXk8oVH7BYLmc+ihNjNCSDO0RjhAjQOVYu5P1Y9XLhBmOy91ZY/bTVHVF6b4/R
-36+y6k1MuqYYzZGFHI0UU1GYyzpUcXBR5V2hi3on0lyd2R6euAqbI4v/MXkiIDiaPSX0B8rJYb1x
-RZ9tWqv2YLWm58BVJ67C2YfOOis4rhXv6OVQGVQThxyQqzOdlLs+B7aybXoDgsMfPzTmZYtePjpX
-RsLRh+0olzgpDwXNok0MTavZrEmnL29f5PdJkRR2VptgjbdlRTi6G9w0gGhpd1Ec9Ior5s5s3tFJ
-4O4A4ti7Asrn/PntS554gAi9KMwhv2LSeEGg/TItZrWPBqlkL+04nJX7NGj37TxN27evcuLGSIFm
-50PUm+u7x1fRaPITjv/oS0LC6poyFTdI6QZyyyhxtlNyTpp4+nocS/wXI8DxuqZsUwoCOWqyEA16
-oUbZJwLtE07AXW7mzYOceuf727d48kGuom4WGRQPv5UDKgJBnVWZOKd1tsWAk2zLZlzOzPInrhLg
-SyT8BI16gN7z9WRE6ZWy9cT6Ikszvg8moqiGvJjPeHnWcfb6EI8gw2MlwUcUcvw4miFiPx0TXDZQ
-7xD679NyGiInV/o9/ibINjoQ+DqTqdti1KwObz/GE2+O3RZScojnnCmPZVUqM7OuQ65FAKSbPK9y
-j+dFhu6wLxvKeUSAQvzfv33J35cVxDm8MI4DGEbwuL1+pqm28WT7U7WJnXo5eNK2vpQGAJIbw6Zk
-cB83yrGoyK5W2rcvfOpl+u4aMc1kjyXg6HPHBcT+tRkRXaQjJmnPJQ2jbfUfb2O5PUx4eLMAf7HQ
-v769pp2EDANJOb8M6gP9SjQRSAEFn0JZVt6ZAXpq6KxLM9IunigC89dXkyxqBMogBYG3nh1y3127
-OpnhAm8QOcEEyfzOo1F2oIEyP/354xQ8RrRWAcPHWxfyX6YykamO3rdHvDyIi3vSenAez5Z/ZvU8
-NUAFmHnukI+QdfT1VWjGtRj+eFWVv+J9asP44kzIVOfC7S4mwz8HwPx9+8G8zEFeUE9ajU1Hg2RZ
-BmBeEmWOV6Xeoz27qJoCP18rSmlmDmeG5DG4lkWHy1FpWLcg/P+xXC6b5iLOUwca7xIrvekR70iS
-DcOpvPCI+qx3siClz1ROT65p3bSEGSHY3YAUKNSZ33LiSa/yMY5EPGiW96P3udiJ47cLIsEZLTuR
-sodWzfvcJq1DJFW1fXvwHIvI1hsPETdiTnhZMo5FZJUuCGaxKYLnVpwAcKuqOKeTBHWHhAP8QQAq
-gSgAuW0J6b02qW19sjrOcptC2TBfqBh49XerXayJxFXDSxGLMGNd4+dH5BJzvDrzoR27Tl9+sIsz
-nL2+idTu2Ew0VWGa+Cb4hpAvutplajTf6al0DkjF64s4SFY5VjccUrgCmC2MDtBBMgvryeHnyjNf
-xelfgw0t9B2fdeN43OT+WCqTBijZqwvqLxQp2YtbxvUiEgDHO0avcWlqRaeo7OjJliTaGopcZeLV
-zT+T5v7zZH75Lc7rTzRFqp2jAV4ZbWCfsE+WsMjtcwfKU8OT8YIJlWoVk86RM6iZgQcKl6skY5dG
-bh8OP4DGFO/UYCZXauD09/YIPbFasE3z+SRZlFHLr//+l+nN9RezwayDkNWDjNEbxCyLudJnnt2J
-6YarrI5XTlq8yqOPbkJjWU6SIwgyku5znJPz1HV28hWH87ldxskb4ji30usB5R8jhFUOzYPmORWP
-VhTbuKdh1EPLObOXOXkV8IrMZlRVfhfgJiJubfxpqJuSLNjX0+TKLYc4cEtvv59TTy5gieUd4XOi
-rPH6/fScGwI8nlwI9OEeb0G+FY0SDy1stvf/zaU8irTrnh03yutLVcM0oMnhJbXT2N6RIIm+pAh6
-teq3df7hv7gYxi2Ke+zeyel7fTG3wsXjw4aBztKmeylHHEUoYLYgHKr925c69a7Y/bG24lpk83A0
-+FYCkj8gEuMw4lUPhZkRPBuoc+j5Ux8uxACxFp5YYI53t3WpfFqWjLsaBa25kYSEIhnK9MeU2te+
-lXGxffu2To0MyohY0FyQq/h4Xj9BZ4SQSOIaG5OGsM18qcwPfY6egSNDeuZl/X5vFGIwC4jVghzy
-Hb++lHatsASjWW2gAfeHNO4emqC/Qn7nX5h9ps7c2ImrBYj3MQuF7FDwehxdTTok0uU9exNt+Fer
-YPQJJROcP0su93GXxme2sr+PD5/ZL/TWzQlnffvoehmuMtcyGiQloks+t9aCPMex9ePbr+vkVbCP
-8BlzjvsNbW4Yyp+g2WBfbZPiK4CS/hZASnFmxTzx7NYNlreOQsHqffSmaAQsSRsg5qrVrO4tKxYE
-LNV5d0VAtP/J7uLy5x/fFkMQuwqu2ZcG2uuX5fhljxqV0wYmfM4Blf13Rr76Hx/fOGpAqlondBqu
-x2US25AxFCnFyZFgb2yXMSC/GpVO1OPlHjcm7+zMc/z9bTGvo7EPOa6ybz1eFjuYUd6s6PfNZSdv
-xJLH70ypHf3Hs7sgiFRgERfM7hy9Xz+9oDIsFYTkC6XOSDpVUf1YWuC70H7+zbj+j673327IR24l
-+Jw4fdvr6fv1lRLkvoY0u3ZjdXP2uWqMdleM6bnK/+8bfS7DsZf9BCmqeH+OLiOAWnSBAD8C/NIh
-RrsOcudaz7pw3inZliv3KzSKndl57XTIUcWF93Hsokysre5sN+7UPa9TCAd/ZhM6f6/vmbgnNwPk
-1W7mvlQNoD4nvXEzr/rTvQBLC65RBiYTpI+T8vVlzJlWprtWCxuhg23o6B+1YyYXL9/Z/2GFfsUK
-scHnHf1nRvlj1vzrAFno7x//+rv5123Tjz9+BZbDAln//L8BQ47zF10ZpBnEDPApc3r4f8ByJ/iL
-ed4kAe/f/4Zd9v8ChvhTHAwDcA281fWgyN/4vwF5/l8hhUaGNh1zqs9wBf8EMLR+C6/qYdTKOX8j
-v8f1Sy376OPvs3roCfH8glAzArD3QEhqZYp9g7ga2gP7V/DRncrPTDm/1aXWq/KcaAhgrmYD8Xq0
-GtLrIAb6XyYJYzW4qdTObuKI+N7tsjz/8nLu/7mVXxFGtKiObhFbKN1Oyn48aJ7asT2fU6pXAFzg
-iNig9Io6cw3RFbWVQ+sMgRuD+fIOqMmrbmfKlADfgUZWFhFDC1O5K5I0vAt7Wj6RPw7Zw1jYxgf8
-NFCJlwRXyCYfpvhTy/7HiozaS9EAKackNmRCEB/5BNbn26mHlXrgLA3qWRBvN+48g507+7M5/jSK
-GN1O0WfhZV6O0tlYia4gFzdKXga16T87DaQe2HV9l14Eid38bJoElpzuex18XCUpXWS3+PRoR2TD
-g+8kPTZYtJr5JnbxVLiNabW0yLvJ2HhWAsvbNUFzbFURlmiHA/L1EJRIUsb70nc/1/EwI17qPHM3
-oZTdBm4V+FsDguytYdfA0u2AVR2HbYLRxSd5FMZwZUGdc41A6A2y6y65xvYgrA04XBc7nuHO3hWT
-r3dtApwjn3AIcKyEKrFvMwov2abJnVtTtgDXrWp5dNvkeUiMtGONha6Iurl2SEf1QQOT/Gf4CLmZ
-14MNGucYaF6ME4Rs9cEpt/G0zHTPR8ubduw6kn6LxHvd95pTPxyAV2VmZEnleFFjWXIEtlIZB1MZ
-jXFH+1T8PWW6SA61OY9yL2tKKmgRgzK5dlx8JpdOJxo4nySrPTcyyH8A8JuQgnt560PXJ6GU11+F
-DQe9WqQbZEvqXRgOfbMtpRFejq2X9VvwnqjpbWrpxd2IjB51oTeYEgRjXZF7lda5yaNf8uYAGLLt
-tqLz6jUJOSdReVncjAPKNCEUeOgUmnlCEVX6XdchNaR8NNt4DxClAAiPiJlHOIfFBQJMiCUhQ+xz
-p1z+Rjvz2aiH8whENkFGuZkQatw2yZw/1WWrw0PmaBvyQLDwzFVg6iglHPlnNa/C7sCea/9qkAlR
-fewgJ7mTInYuXWiiFup3c0gPxGaOTynYUW8vOiVxYtRoJnhqqMWS2cZK4hO9C0Bswp00JstoILdO
-h/vO0u1X9tuq39qlj4h7SYXxFVfa+MjpNvnYEFD2PfQqeTO6CXANg4GWbZeRFlIEK0F8k54kZ9OG
-MOwjmecGt1ap05HBYnvNro5VxX8ehosTWTh5cHGVFf0a0NU28c5DBeLMGnr9sIzF+FgmGNM2BQ6q
-HrlH8bFT3qowH43vQjTGuEWiNH1X2SS+D21l3xMDjMq7hfQP6tHMZzhX3foe+pLCQt556fpbFOWN
-BBCP3PSwwr1dgkiHnJZUuM4lbhW2BrnhjjABQjU9N2Sj3su8yMc95Gj7vssUIoIgk8CmYweOz9b2
-5fhD9oO6XzSNyj266PCHCBvZQcN1i/dw14NpowiY+ABlvKdB3pjG5ymnlb13QKf5Oxx2PJ4U00W5
-KUFsfIAuinu2sXLTjyaiib3Ioc8kVsZl6EXKc+afmZfFz8uYje+88aVesyzU4nTiOfdm2ehPdT5V
-n5bSxOaV4Haaok6Q2Be59hzg0JKVlR5GivbfCHFMUeunrr7uYpeKZ9YQqLcbnDzrL9GeKYrOeqAp
-khqEFFxPgdstUSZE8c956P82NL9uaNgIsyT+5w3Nu6/k/B76ZhiOSIkvf+7fGxnP/Itck7WHSwtw
-1UJRefw3KdG3/qJRTaWLwpC5bnF+2ciIv1Z937pZgWBII8j+//sYK/jLpBcWhhREfEpyrvUn+xj/
-5Zjy606GFjnSIrAMXAmUCTkur4qIzpT0pIw2QTSqYYQWnfVVgnnZtqatn9vDQ2COnffkvTBPjRf+
-qS+pSF4GJKoQ67t08iGFWWFF/Qs41SEEZUO/kpVt8F3sdyWnohkATUyWvN1XnM8TexqZQeCyVmsl
-O7IK9x1x1WPxIAHjtnS8JAS41ADMv5EU4JcvVcYW4k5ibPmbYPK62RZxqFgAVdjdui9EWzZpPVn2
-7fRULWpUlAMaeS0R8CMwJzujuc0niMcHPMkB6FcZ2z+LRSiSWh2zfrT6wqoOVhbXmo2GAfT+JVhV
-1iVK7iLJbkJNHXtXDElZB5vSos1yaWaDbWzwDUECNnBw15GtTT+/0YJ4OqwfY2UdqheUMKKpOdiX
-rurSrU1GurotW2cKt3OHDWkXV/7SRcgZq3krcQSNqIJAVUcDERkVktUX6HGAu6k70GCzUd2jXlzj
-fnvPKW7cESb7tQFs2P3eZ/kqvs840URTGFcimpx6tu9sRVpaVK8Rv1sixYfhPsFKtxzIiHHML6i+
-S++jxLlIvGyYpiGV0Hpw7wGKj/Y9pAKsjmZKFl7UDJo0Bhocw3glYpV/KMfe+irtsv4UF4K+9urL
-KDdLgwimCxL3UFQ5+GPK5c4uFRrkXhJqd0tKSvXecTSTHHnFYgm5Zfgmhbuhv5y2kexn7yug+ay7
-T2Wl70VFKbOqtHqaYgDSt2naiXnjpjXaO8PpGywrY1hld904ANsfihqktMPJFVaLDAod9bDozN2c
-DZl/q2fSqLGz+pqdSgCuiHpsucj7ZTFI99kUsmRrYmNVtbcssdj3/cp3hr0vs2oHFrn82nuUwDNS
-kUGpkSTDHs5pAmM3S3zLbWgNyBzLOGnAQuatCbLWNHdQiJsn5OxIobICUvOex4I1io9lcr+GRRfu
-Y2xOKaEPbMR/GNUyg80FSWBeyEDp1twqEjRQGLlOpnO1a2DojnAJeke0XoxDd4m7aiYgBbJwccXf
-HxCTTNrS8mnWTb+hNaUa2DW9c3DH+Vl4wxQtHHofcbbll4Qxs2AzTC+apEFYUiskYbbO+AgbtucY
-+UCtQ4yH6A+5wBRAU+2uwW/hTXF+a49T+tHA0/Q5xXp04YTTtB/gcL5bzcQXREI23wlefqxV62Gi
-80kXaIL5PvRqkOPERMw7exHVl7xOQWA5ucMhHGFzet9A3vzMvakLO264IpOEs3fidpsZZnVwynKN
-AoqLK1sM+l6xm3wQbkvYcIL3Q+MlCWQxvzcqr39UGDYog2Nn2cIeYVqDGDTfUlEObgTNMjbqS/xl
-dkEeb3KiB0Y+ktn4tITs0Ta5G8hyJ7C83INiWG6MsiieQFAPn4NshtaK0r1KN3ZLN2RoscGkqjFv
-JqvzYeRbE0kLzKA4lpxWEOExhV5/m0A0eKi8Bi9o63TzjzpwG6Jc86koEHb5eNpADjTdHnBpws4r
-MyxYUqWVgO9uEpwQCCJ9EpkB3bv3vl8SONsP/ZUwC/OyGwLaaMsSDGwGGm1nO2EU85NqHHyw9CvJ
-YegIC+j3NAOci3Yc8TJrSTkuzYUxR4YRJPHVVNKvINuHrEjqdByMGBkdOM2NdCmK7zxllflNVVpo
-ndYoiX1BFKcRJUybJekWqU7BTPc/ezAvOAcxJnX7PlT93sWFWzyCYzcULUgGJ9VoPN+xx9S16UO3
-Vvuk7Tvx0ITOj8XPmPPqYGumBWR42VW3Wq+sjItUtUzvkcC91ReXmdMMcDA01VSjfM6L8O9J5Ar3
-6tD6WNILu2CdCSer3OmsmCGmG6oY9k08yjBKcpitB2W27GMNmNaXi8G+ikSn2jhks9wr0VwuMExI
-YVg8K0K00N56c9gM20bn3bzv7dj9ApkLsIGHGBghDKYtGouquTTcQV8kEjI8Yoc+YzqahDZ2jTvZ
-POU6WOOptO7uYM5cU4XX6XXpzWWwF+YM/TxY0R0X7YAlb2dhbb6F0JIPl71ZlMG7Jenb3WJopngt
-Jzv45MxrhkIz4khc4hjr7aAkHjE3ICghKRALI7sgnsHlv6KtJkgBpJT8kOdFvTU1j/jCWZ3y2bNM
-myddp+uSVyzed7yG8/Vkq8Q69ISfxFjKPzcQkvFXLgYDgySVrvq8NCv7nunc9HY4hRnuix4xlHUk
-T7zDPJevCQmz4R9M5od8z2hya1zudvq4tC6V2Rzh+yZ3/ENdFvqqLDU+0EB8SVVOCMOiv9ZL86iS
-9NFy9XJlyuEZmGOE7uE2V87fpWlO/8PemSTXjW1Zdiph2Ycb6sIsIhsAXkVSFGtJ7MAoiUJdXJQX
-mE0OIEcRE8uF9/3HFx9pZCra0XFzmTsForo495y99wrmznP92bL2HYu57w7WhSBD3AqwmWxKezhX
-SgJ1SJXN633VSGmzNLq8AMhefGnVUFR0zRDWIZGmM2xmO7Yvm9ZNVhGHY/dYwhdl7DZxJ8AU5Jhx
-v9sTqSN7jRSR73Ux6qyVRX03a25SX9jRnNkH2VV8ctdJDDrNVm86EPRkGpFE0pJy0ZpGdaPHg1TO
-6LAOyQZvh50HY55194tIBf67tK3EnS5yeY8LSfIN74UndlJp551BdWATbeLYySX7pGretbM5+ojf
-+auzjjTgDmbUuFHLiSNWver8KAbZ3TcmjDJMDJr6jDfWvtFJFcqCVtRJkGbjVZTqRJktMmB3O5Iv
-MofeqItbrmpyxvKfbUZjCmPkbYKPYvqVVajaRkLzQnhBzrcmUfcOWRMk4JA7LX1MJPp13CeRDOGn
-5FhfkvsFFnG1URf2JTYm59V1mV05aaZbh2Fxi709ekNQKiRrVBJEcT09QK2haIiLpMEGEbVWdp/b
-NdwuBztbb8+q+1CPDaRxnl1M1XkLFQdXNV5HbN6DVWS0E6KFO3SWyMguEVrQy0jFZlRGvasp3sqY
-Um+qSecA6JRn2mFQWmJatBzymF1qtbtFszglj3btjp/KImvdx1rtky9aPA4uv6qaQQMWOaSLWNrT
-nUGoUO6rtZ6eK6TWAXTJ9Ol5qiL8n4oYEY/EnvLgKLy8Rj0t5DE6fBOFTz8m+qz0BpbGjhJiZ7QL
-6+3RQrpOp2HMGCsSplIWrJSuqrnTXUtHCfl/N5kEc0Q92do7bpn2veucZiY1ZSmhvlstVvymL6Rx
-wGI+3pR1mdbbJGkbNahoxCyBTcBEekkkI5/aZqT7hjdsVj91nZcaB+Gki/29VVX9s0Cf+Yyn2tz0
-kHD8rDZ7e7dorVjOmiRP7kejV3aNUJZnw+3mGwsFToBBHzzjrPJ5YAvbVwYRArgVNozhi3MLkMlV
-UxjeeQ8SLN9YTTRrUC86cYaFNFd3q3JY/0zE/7QCCw1F+8wZxKM/LnVKZo7ddkFZzkm8I0S2Hc6l
-SMDelqpuBHSTbsVk8crNDTQqFq7yfrR7firrI+vCcSZydlQD4scEzuDAjNxr+D4IFigLcEEZQI7T
-7xPpip1dVEp1VqZD8dkaFWM+RJ0n6a822VNP5eXsWstsrB2CmUnu9H7eLvAVhkl7bswE3/a4mH6X
-Tft8WLaZEI68VNvVDz8uovH2BNIMjwlZlMshIW0bf1HabM3aFs2WnKRW8aG9TOpe5yd9GpLDRe3Z
-8UUc6Sv7J7Hy9mCJvI4D2E8enBHXaUCWW9Yhq4fqrCvbNWRKmA91j183TNa4qh+am+r2ruVDy2qI
-di1oZn12eH3qQQ9zyu78EvXaUu+JbvESGCjCin2nxb4fajw0dpC73jIh5cf0PoZuItDwqWQ0GptJ
-y20N0W7hboA8TctelCrmaz0ipyGg/m+qr7NtWju9MgHIK0nxo8Gy7pMN9YuJGikPo7vt7MW8cS26
-OFh9IwPAoXBu6XJH+Y2+AF/yTWnvFeahRdAbUfqJv1Wck8Mo912VTls4J91PB3dFYJLtwyeHPvA/
-PFr/0+r4vdVhoWJ/r9Vx9dT+5/95Ma35x0/83eQw7b8YtDKWQPKkMzIw6GT8Ey/r/rVKk5iUGKpt
-r+K0/5rW6MxxEC+xnJo4Jtl30xr557DG+8slXpluHcolvB3IPv73v78Yl3Ynf/59lLGOCn/rcFBw
-HqWuBLDrNp4U52SuPuINjwlK5CHUlTGcezJj8DD1m9+uyBsDk5Pp/T+OYtDsQQZKLPSp/bqOuoZ8
-k7LzcX0Dpx0UNoeVLB6ZHIiQXEjlA/Pg67NC9MDVY/Fnx4+l72XfptAWpNKSycjAu02G3SSRZY+a
-//5ZvXUUABYUaIyGuU0nuiLofGnWqngFMzPRv6DELmnJyyV8/yivrx3TOo+R/Tq7MxHrvjyXFh8P
-AyQIYjI3EwfilCQ2JW8tC/aAN5MppIkpuXv/mOtdf/lUoJZatRYqwaSkN/D0/S6e8ypjLRjnFh13
-pZ+piiB/rcszpALMbf74UIyW2XTzaqzOlJOxnd7QJi+HnEMVY+OPXrVsG9I8gi4riw/m2W9cSRuS
-M2gFLuNqQn55VlZjVy7zlNYf0y47EDNn720r6y+wfXqfJyLo9u+f2hvPx4vjnVzFGXplbY8cr620
-pdmXWtQom2xkHPr+cd64W+QBo2m19BVUfarQipi3gdK0BJJ1kYwB8ItsDvt0WB7J6xEfHOyti3j0
-zsNQUPHcnDz0niC3u8sY8jB5yUNmVDr1EsMimofM7uiqB/+NkyOJlHYwRAyWyZc3baSgI7wMgqtW
-DKZP2hrbi16Ho4om7c/fZ5sBOKmnNl5LZx25//7Uj2aqgL3QOFQChsJsI2ubdn38wQN/MqdmLeQs
-fjvKqxXXadpO44QsMG1J4sQ7N5/FAzoa82Iyc/HQusPXP7+Gvx9yvae/aWE1xbJyRZIsMbdqEfYM
-wy67bCEIkvSYu/cPtV6jk5UDwQhdIlQpa5zxyevceU3SLkpCc41E/qu8hluquIRw/zeOwsPOy0yV
-hB7n5QlFVmTCQHQEnTiCNg1Z29t0rO3d+0d561EHxMqHef3aoql4eRTSfNM2BSa4AtQMO3CJbD8r
-7DL6VTZdcuexXvUfvFxvvclcOpZDwosxtZ28XBmFYJva6It6vFo7Rmrf8CZ+1wUpV++f2lu3ycFf
-hjjaXhV1J08ESjRyki2WjCSCUTeVnRuaQKA/eKFOZe486zh7V28msxo+JKfuDyZt7BWsig6b0Rq4
-P4wpsBb4u03TMBSfasMnKXQXEauLw4VAOWQhdI4W1fwosfn1+SJPhDlE/gRCbV7Bl7fSg2U7jiNf
-Ga3qC/uaJn7SHRJjKD/yn2jrov7yBeBIFHxsrdDbHFU2v79rsovdRAMpwhQ0yQl31cetEI1xV4/t
-p9hW5FnLeHmDeUJDtkuKJw4StuVO0Gu9dxigjnxQCr1ebpD6abyRK9VBxYLz8synmfpIGaXwG9Wd
-DOaqXknAUz/FRkhykL5iXkf7pmMc9JEC/80j6yuOhgKX634iA5rHxltiwaozJdoYDnGhB5OIFDxV
-zNC8bzX44/BPn2rO9bcjnryws25I4g5XAQJtgwCgcA7Qc6g++CK9fpY4CjeYC2fjgDtdFlCkVAYV
-pfCN2WW+BQU9GE1gae+fy+vFh6NARVLp6EO6OhWtVzX8jc4hhiWPPfuG4YDYGKs7Xh2K7Huftsv2
-/eO9dbd4ZNc9h8V78soQnzNOKCAZgzedTEIOhauc65EKttUtu0/6OHt9KGOqwA/O86Pjui+fT3vA
-GSlqumhFWbXnGYzEA0l2yyciQtvzgQQU+KWZ9sHy99bFXatNuEwU8KZxsvxJuOcCFy8XN9Wsr+gc
-kJ3o3ggnFIkOYdFkR3x5//K+XtkxiRAaga2Cyhpd3MvTHIh6RJYTA22NmN/aQrQhqRGjr1Tyz8tO
-SmkqGLwiJCtgUHt5qJyIzHyyTdShE1MaNV+Greytj4rpN94CLK+rupeBNjbQ03Ul1u1O2qwfKlHe
-WkDTM7dJimqBjb9/5d64Vy8OdLJ0VzOOPsQe2JKdZiJ3kDZ0njnXqsgtsoQ+SqRYL87L5XvdVxPO
-wNOBTUk7uU+8x2mRJAvgzlHtzhJXKXd1VapQmS130zg2k9ZJUXK/nBmt//mrgN/B1EkstVci2smN
-cwD8LnnP139Reu+2EJb+mbzxISCUXhyAVKG+a5LoIwvqG0/mCrngC0EZwHOjv3xc2JPYtFon6lHQ
-uEzfPEZwWpYATmCI9P6tfONd9457ZbCHuF5Pdctu082dGTcUVEk9ntuDGA4lNIGz1PT0fR85tGcL
-0f0xbAipyKoX0SlEGGqe2mTaRNAu6zmqMdhoBAowImuEeXdm1cZwKdcsvcr1OpK9kU28f8KvXpL1
-o0sdB7ODkcmrvAVC76pGCFaUmCQ/X1crY6trzvjHeAh0KgjTccvgqHq1trTMyNtp4ZldmA/QDB7A
-sbHFZercONUHhre3zojVhfITqCQHPHk/wMwgNG960vcJqcOCMSjLI4P14qNkrVdPJVdudQtyy+gM
-IL95+VSiNG3cCQEnTyWcvq6ZzXO1GMqDkEP3wZfvrUPhCYXKitKdD+3JofpVv1KXJYcSMS6jEfpn
-s8zEwKvz/s8fB2ohXgHNom44/caK0k1SqTeYCJga40mk1mU0LDZ/fJT1M8PrxcUD0LdWqL/t9rrY
-STxYOSxhFvmbqt0lYL/Lj2xhbzwIFNRrP49j4C06WTZ4izQ3LiJco/nsBXQ+le/j4JEG//7JvHFz
-sItyLoBqiSx55VJHQZ0ocb4G9A/RFiFlF+TGmDGh9D6Iy3nzhH470klNUNWziJY5Q9Zsjw9YPYxN
-pUfNB8/aq48ZDjpakxwGXRvJbSdXTUPYVdZ4snzNRhIhMiluS2OqD15smYtfT1Lu3r9+2vo3vvig
-rUdkNoQFH2Uc4rKXT8MiiqzA4Vv7ZuxxAYWWhJCxgHsyziQI2oqSfSXHGBGQ5aFTFvovZVbOOqtq
-tokx/S2OfNF+frfdvP42JsI93DTo6U5/m0S1Es2VPDW5kzw6g6JsCLkZP+jzvXUnkRXqq3+Vzunp
-RbbFtBADY8EGTFs9DeYJu3XYEcn7h+EGNGSpEzx8ngbOI9IiTh6ZyMyJNkITgjqrkgE5ALavTsqW
-2Kh91aMdef9WvnVa5A/x8ODVQJV4sk4xsyZ1Y6wb3+mt6DwfZ3FoWEHD/8ZRaHaQKMg3Cy7my+fF
-KZzWmGNWQ7j17UU9JOVGWkb657doJWCStMGWg0bOyZVDpqjkXoqpeJ6c5LKYPDPQUiv50zYRenqG
-J/Sh1lkKTcSX5+Iuo4JEi2c/T43yUzlLRvqg4T9Yb193OdbDEBtokfiGn+/YEvhtwUWkWFtq6TBQ
-HaL0QkGXvNVEcVZPQFBsdbx0J+umISaRZ92Jzul1n9le03zwbXlVW/FLEONhMCJYg7dONxiLUAev
-j8kyX+xRhxsmk666MqWljhfWME1k8U1ekR7aEcPjBw/mG4saOwEmqjpeNEqskw8OkcsWOmwPehEg
-xzxIVELjpya9MExg9gh++OcfP6N8eFg9VistF/30TdBRqC0qq4iZIGjEp9FunXL56E14/ekBNUds
-ECFtq+v+dCtAvzmWLeJ8305S0OAu0qe5WpyDySz4g0fo9RXkUC5GRuJEHaxF66/y2xPEWmkjmOQK
-1rmFaWauYccAMkm0e68zrJ8JkbjRB+/5Wqi9/C6sCYZsffEQMp48TdNJcmHJWBiEZVWlEsLZsh7E
-MC3fxeAUoaZV+ndaIPK8SYx6X7Z69/j+LXz9uOLaZPeCB5V4QaaPL88YHiW8pAn+uUrYVFjYzk9y
-YR+tiuaUgNqBru6jivL18rkekQ0rkzQ6rKd7/m5Ks1TXBBIgRWcfKYZhz6vyUczFGw8NmAlqSQow
-WjenivF2Qe9VOevMvojE1iLsHDl3pCV3GMxRJr9/EY8uwBd3kcbamhrEiJiCB1vfyWXURgL8OoNU
-drM0C2U/sFw/K4mmVMEwZ92tVCNP86WnIwqapTs3F/CZGmNHaS9SnylZLcJF8Vr8W7w/JdaITL9g
-7qeMAdUrYgcisOvx4BlLke+miFnn2eR2Vrp1jW6u9ys5ifz2LI+MMx7qOT6LpqkrDmivtDp04G4m
-KP7yxNqvg6Rh1wlvqK4Ss+iag5EjjAYCkiUr8iFpXVBWkfat4eOTB21B9ljQTSvPt3ZWUkFuw9C5
-seq8mHzH7eLuulNLrQhdfGsaGC+YUdG5O0WQAdwyl/OOwH3USHwB8p9ltbrhAC1R66haqi1n5tQf
-U91HVKiCu4mYmaVtDJ0u7w+T7Nw0NDMdwEHsSuxpdgcmLMBjztZgpqedbjS3btsN/LOs3RedlksY
-jVYMZhS2DfpjXV88pIgDNQC+ZbU6U+yCABJ9Al+9S2CT2qE3IVwLauhDzwCkjG9yKUkzHRoqudBM
-Sk1d7V79tKYzT+WO0ZjOLVxq+iDANlLbl1AWx0BJaGJsR5qCOIFGL43PBkc6FjXsBB5CnZZo2nIH
-SnhW6qLUQRG3sbslWh8uTj4ttr2x4SWUPkMH7MQ67369GcY6dVGjIZnBBofLChDFcoRSLEdAhXmE
-VeTW3I2HWCHBaiUbodouSAheUVTRiBC9bKsMPknXFYHb1RREYuViSK8aso1xxGVotTaBzkjifgzZ
-PKOLhRw9X4AL4Op01aAC3ahmIF6eW6VfUgGVo5zMHv9AVizzNj2CO9Kiip6QuDuIhet0KMPsiPlI
-JtU8y7Ko+uWIub2fVx5IAvFIQkxaMSGGVjlVUOaes8kHoYlNj4zxh9GmBHXQki0ebWtm115Xune5
-5Fp9ico0MXZzaywl8UY9srrWOoJL+OyziVt5JssRbbJETvJtOAJPxgH2yexmxVdwSNZFtZJRyiMk
-JTkCU9CxS7YAK0ZFzNp0ZdJdrUNXiwCt6LPIHvLac+awWEkshahGjH1p6RCTsrJaDMcA2wKQLLsm
-Wn0edmBJAbugfAPy0nhE4G7qZWxtdIIrCAbtOmLcdOXDyCZOflnLCo0hWU5eREeUTJvIzAlaCAY5
-vo+pzLfWSp6BFAVSK+9XIE3ZL9WOoMAquR2PyBon6/QUotqKsmFOa/xKvZJ2FWJ8FLdKLQYANMjR
-GqZZQ3dTHNE4bH70a9uKxZfUQPvsD0eMzgJvqNmIWIDXsY6oHaSEYHd4U4rPsmnU9sJYuTzVEdGT
-qgq4HiWD3IOLQ33O4bMCmlvatv2KPtiTT1TiVnmeRFkfb2VJWMmZUmLNu1AsDKo3ep4W4kLLaiu6
-EiYZXhex2jdfF1Obk4e48kT0Y+yJJ7nVBaipLXfIda6Fw9K5N6MmJxVHrSb7rE+VFqwD74kVFqod
-LefVqOsyFHlkDWdt7VlTSG44JI0I8h8VdZHbsXbgoyPbXasusb3NhZNEO3zL0XNmRJMK+BWNaKga
-bVduHdhhAK6QOjIlilPpfR+0SlMY8/PFjveRBqT6mrRu3TzDZMMPeJGZ2Zg5kSEfvAiR9BW4mtL+
-uj4IxnNqjlIFG1G3ehYTLTGp8jqnQKy+oOTMs9tqXpAv8gUw6fGbMiryhyjGalHtEZINzuiLjI8b
-oRRWG0ttL+upidAdT27W/ooGegE3i2UWxnkqi5k7P6kpK6ew8iy/ml1cPgGi0Xz6bGqxEW0nHe9Q
-oI6kRofxaHBStW4WdA/MuJX6py5qm+qcmGwk6bgvGvt6OlIxOFsWYooVHX/xyr0JxiGpqG2zvv5i
-IrrXt7ORz8tDjr8TMBpOymWj0tej0ZjE+fDJ1pxBv5XsPnTTJ2NTdy/anHi2LQmyLn4Y0yvbz1gF
-GPqOeanITeOmkR2oXDkRDGyZ7mLDkZ9VZ2pujUgjuK8xiHry67Kzf0C4pHKZIosWKtnvRR3MiAi+
-LcbSTX5sF7yqvdPOPoU8JgreQL26IMdk1EIlsd0SV7KmXGW09RXEhwNBanOqKyvdJpm+JArzwU2/
-bv02eVTEl4UissuE9qLq23WdfS2dggRKoobaZ8lPL4GG4o/uPMh6ro8ZxTl7EYHwyiTA54lGS9F+
-WjoHHhxgRazpWGZWl09iDfgyYaB/njFueYdK0dybutBjFWXrOMz+oHoz6k9yr9A9JyzSTpOP7lnk
-CvAxGNOrn2aVR4o/VZX4mc2x+TmGqtSFYxENYF/GxSIFYKrLh6TSbZiQkai/Ah4ecEQUWX1bK1Zq
-+CR6AGYovLi40pxZOnyZ6qJEg7R0JMilWrQETqaXdUCWcv6M6AR5aVZgCaKkq3s7SLFu649W0XS6
-r86xuPSiClA3UtFBhpnpOFmgUhDes9klyLKeS/0WCM+EbyMpU6TGXpwXG6y33XfXwNbnj84iwXXV
-In6Uak5mIovKcm4vc/PNZONDZjxmZg9va9F+W1xNecB5RlS9vRC3g5176X+OWm/cGLqQP6cmT35E
-Ue3dwus2vhkiTs1gSmLll9FPwxVNjeJ7P7KM+5ADIBI1GBt+zMbo/fCUIkXgizHhm4mv5ns71fmZ
-WWRY8UfT7X56i6x/MPgByG3OOiGLlD3GCmVNO9BdiivOgTN6006dLecBfG6ibYoB0Gcgu5pOTJ7W
-cFeRtWMiYg6y6BvI2oPi6xEMwB24luwunWoLrWxcW9+73hribZURDRDUNP5MDGdo6XEbCHXa6VS+
-TshsK73EiGVPe4jsBA4kChFwPolvuX2BmYvRLN131Lp8r4CiDrEFwodhYDE+TioBNcHKTY1IdZ/t
-SYNKqDvcRJL/1TrIuqz5HGGK031zzusx6KNI14HWIuMKzcVJBt/2ZgzwZuZQ/djVoD95pGGfx0a9
-EInodJAvFl1No12RWwZupSXNHoXlyAlSGaw0nAJVurUsAq03MO1yPWhit9xmZsG/GiKFG1XhDHg0
-Mi1+aHOKjT0m8knnBYmmcxwG0xewiB7+Mq1oPsMxdEmMhzMJWaAb7H6LSUdlj+ctuUd4ZFfPQTLa
-Vk5Qv0beQ8LMydosQ9ncWNmgYsGyE2iiOf6cYLKVrPdL6TTd6hmwrwaFC3NAZN7QuY4ND8Wvljnf
-ZJysPUVVsZpLsag6PrastA61UciIH1fMMSycAXuOwY5r9Flb+C50S2oWWz57ymfdjiIwSMnUneFj
-wrOYTfjJFJdAJN/QAUsh19fib0ksHC00csfLN7ykdu8PHt/d0HZSqG9RVTnnHmEDkH5pLBKOqSay
-CDIEjU+9OWbTdsQQQsZ7lyxMf7wqf54tMY4+hWJ8bUjVeTIVrRAbxKXRRDhE3mEWR+ocqJWl9tss
-SVODXUDeXxrE732d9AT5er/E6m2Zsx5D65pZqtR+wP8CzbXmYbNagUlAttZDIhOH/AIjsy5at8qv
-qwjxYJCgrL9ZnJjqt1GEPJdjxC80FnGWo5zA74Bs39NDuzZjGaAf8lDPJjK9moWuP8oUloMvZT/e
-9qoRs3y7XoZZIRrVArapZt63CNAfyfaIIFKR69EE9M4B2HmuXWg+oHTWVGlMNFL00cM259oiSX9k
-mgFDeaQ4TfwKZxU7NrPj67gMEUwt7Hjxz6qKVmpb4urNtuYGeVvTrlowaiOIxZArWd6wORY/cpVt
-Et594i63c2N33d5zCgBotlsB9mqGzKBiadti3s5zxYjC7mb9BvRbzPYBuCmOrKzuDpxW/6vQDXI9
-F6LE5zrrHX/pnfpZrdTlu4vxovaR7JkyNBLH7sIma3CA0IDmbdRRNvAZl2a8AXnrXWuzadzp/cLi
-QKWRmiGySeuunV1qkD7T2hAiWnStzl3KKhzV5d7r27L4pMFHbvFhjsplk7OL9cE9poe58Nx4n882
-+85sbuA2yiRCrG+4uXYWGagVsVGZ66Ph9vbVlEjn3m2E4QR631TPhC1Mt0Pde19AByYJo5puPM+S
-An7bXJnOrZ428hfmmIGPZR/Z1yO1+6d5kh6NKJ3XddAVmQQqe6F7UEqo03KGAdcyw5MbpFKpMRt1
-y80IObvzY3B2X9Da9kbg6fl4S5Tk9KiX3gT/mKrl4C5R657xBZxdHGu5DjSQTWO965Sazxa2C5Yi
-wiU6OE1rxEpAMnN9ly15JvZxptCX7hskqNhuvQzGaZqObthoQ/Q1mqW4iU2AsWixx2oOZ4S5JLYu
-ehQFrt1WsBAIBS+CtZff4vJb2cgYDeW2aBPvUfcwYPplMhv9Xiapd4EMrEm+F3C77O1iNmuTAND0
-DSJlVEZ5h+vap1uHra7t1XbauIL+8wZ5jWcNDPOZfHhz4DLlHxdiS0i1UEuEOznl+EFETvSTcjib
-PinLMLR7mY9RuzMU2xK31NOeypCzz+wtKlFT3xSRipR9KcizLwHIz1+GaSA0I/bQ0ASzmtD6lJ3R
-Z4C0NHU8sB1vitCEKX+HVxpnKA+bQWZQROhiANiHzVZxtJSq+WovXY5W0/xoO6Xtb8UX1dGUCji3
-ss8xIPEpRRVrDRdk5+BsBQcEK84kYjDeWbUivgwKJFNqBaKTGIFjl6XIzu9AbJm6nx49tZXTUhoS
-s1U+2HJ0klBk3Yzli/Wb73aUUyHPWLMg0yJ6fJwMvc0DJ0H3xVtQuQ828S9FuCIQCXIp8O+de8vQ
-LNj8TQgswp0LfTtkzigCyyujn+VU9FlQmJNjBYwwosNyNDN7npW159rR6gzMJbMwtTLWCUjqTL52
-+rD63VMGBXxb+JS7YVwVmV6APe20xXBB2jSYgbBhK/Uy5d09JrSsOhw7X//jPHnhPEFj9ltDMHzq
-n/7+z5dP5fN//C+cJ0//+X+/P700nxx/6J9RYeZfzKcYgBiYLmxGYrQr/zafEBXmoHCx17Y9LSg8
-u/9lPlGwrAB6IriLoEqUKIzR/uU+cf8yVBQqq4yeYQMCOO9P7CeglV72oVF2rIljMIrQhBBCdqoJ
-ySOeuaoQ5MWIpH1o8FE/ttoQ35nkIzlEQvVKf9D49j/UGK5+xgU56KWeUVwbTdSfx42sfzlNFZ8t
-TZ90WzVztJlPI6kVvup0vEBRFGE7m5uFwMgccUsRjDiEaZQM+ZWrYPsKE+K6JduYNv0uq5ru4zSA
-UfZVcpbAIUbkR4XqHIlv6NPibx3bOHadTrGa52n2EQ5vRATkIFJqpzAy8uJyqnWolBW5COx/Ccop
-+PQp9O3cuuPNUbOEBuQoneo+b6xhpAnjCo+FfbHuXaQbHXhY1VJ9YxzUG2OZXc0vsItdpLzayeXM
-FDIPHZnqjyqvutgz9aVMSUyluJqLdMJVHUWVDRNX6nsB5bggPiNlKtRWwJKYRPXiVoV3t4QKvusf
-nlt6hBA14lYBxCjDqFzIL597rbvsTbc1bxnBmMsO81pOP3JyI4K+FcZbkN5z+2CvuaW6Wk/fSl0Q
-a7RUwv5E3mP6xAYdQZGhRvMYmsikk7Omq837Gq0AsAcn57NoExE34anNB2CyoM4VJkWupE9prIFg
-mdeUl2pfOTRK44jqpVrUDTaiWfO7NVEstYZE4XID5UaAsIaOoWgmgMw+hpFFx2Ay8GTsjEjT1O7q
-Y3SZc4wxm3qjvR6M0lX9YpG6WDlmg/vQHAPQvDULrTnGomUt0SGBt6alMXjrh4Mek6FGgBNxaqi0
-vYOcNRkH45q3Zh+j10ZFy/sNeeEYj7xxTpwdAQJEtRGwlvHYFRGJG9Exzq0+Rrula8rbfAx8G4/h
-b2xYlXtnTYSj/0E43Nymivs57iShce0xQK7ry84JVGzAYjPnirkb1rS5apapssELTxQBewmpUF+T
-a4T0l4gjLYY9eI4hnj5jc4xB6o+RSEIzakaSrcvGul9Tk5xjgBKZac53DI1LAshqcYzQbkaY3WZc
-EL2kHmOYiGUov2hrNpNcU5oQrZNCYh/Dm8au6z+x4Yy+Om41/4LdRswTEVyls/GiiG8I0jJKsewY
-C2V5fXfPTSIsSjZT2gNEm0eb3roomm3cp/GjUmBA9mli5/fFgvPJX5y8uKUGGkVo6ZH3TPtZ17fj
-mlkV9VHPn9cgKy9dQ61sqoHMV9esK4I/kn7brAlYRpnKrxUvrsU+RWUA5SFNNw5UH1OPOBPF6Qac
-B5FaFhQBoD+mE4NmXFO3lC6nlpiOYVw9HQudcUnl9kRoOdrVdEzuqhL5wyjbqA9jm2QvQRj0l7JO
-H1RJowsl7xoBRhJ5d6N35IJpNAERKeiZZu3yY3QYDaARyc4xUqz12OiHS7tGjenH2LH0GEHWGnK+
-lt7o/OoMlR0bCW/O92rMRR0sdd7Axz6GmRVGCd4Vj5oLbsDqYxzjQ1kafj+q/fk8lVjToyoydD+b
-LAzYuk097VFUi7DiXjwq8ZLPQZlV9ZnI2BSFKa12M5ixOtehNjLwoUlEM0XS7blqDRNZomEV431s
-SrIHesZAbDxk5NHbpiWb79n+f1KjtPhWLJ52mcwT4WgsOezki5pbCCEFNaCPgq69qnLiBbgtVA++
-WvNGVNNML7iQgiS7GaY1jHdQSte2Yhq/zAE/rJ8qywxffSzt6ziNhiKsVfj0CNyN/FmnP/BTsWMm
-xXVh9DzQmu40gSUz+wHjfOps2bU3STgTksbwesxAuPE1XXBEGAxIQ8n09NBJVZo+gW8N6NW5c8SZ
-4ojo3Cg6tEhmluNuoG2RSSIVKxJdQGRjU5e5Ib5KU5xHEmrlpyEGZbWJR9L2abELMjxitzbnoEOl
-tybIRPPd1OiOOJixNly2CeMmHlHN+DKKkpaTgbqnOktUx95mdNisbRHn1n1tCK09xOpAy80zIrlX
-REzxxyZYfxZsAi75rtjcBGWOh30immlvqfQCdzmohsxnkESggFFY5S2Zgc5zOyvRzBBriu49XEIk
-IQwpiCMu/dBu+mqIu61VJGLP4+O227FRM8vPZpV2XEsr5nJOMkPfjMUaYOFxW6+npaeBIaUsaTWI
-6a5nCX3QF0Pw7mRa/6214/RMDJKgUFu6CX30eazvvbFBLQkLF3xmnrdsGPvG1j7FxBclm04d0ifH
-XKL7hnEccod2SH8YqLnpi2eJeRvlJtct7cbxSY9n5adwJpRAf159fm6eq9u+fX7uPz01/74Wrj/q
-hgWZTOij/fZff/o8Prf90D7/G/9j92+kPP58wl1fnf7Mi78CC+/ftfBa9b34w6YiC2++HrgZN8/d
-UPzjcPFzvf6f/7//8e868m5uqCOffhKME2Jla9Mf/e/FpGFAEnmvAr2rfzzx61TdGz/1T/+z9Rf5
-YjpCIsL+13+jzvyn/1n9CzW8TlAbedQkYLiM7P+ZVmv9RSVDNDbKB+rMVSTwrxJUM/5CAIVRgdkp
-htE1tv3E8fyeA5p681QagOpaW5VioNf466xT+UUsDbrnpJcHtTVXZ7XhAqLP5TRt6ZwSwBXHy0Ga
-i94iDnVzhRhCJb5Hvm19nsahByLfmhvHUsSuIbEkpBitmPEmzyBFFiYFuntGXBgLoa0I+1yF4o3t
-ADblpmQYvlXTafyqIsP7XLelCDWinvh+jsqP1NOmJwYq27qxrmZnVA84bf4fdeexJCm2pesn4hha
-TN3BdbiHVhMsMiJzo9UGNvD0/ZF17No9PWizHvassqoywgVs1vplfW6FEbxMpXgnAX36dGjReWaU
-jB9to6+vhKcYH7Ywh498brr7wtfCUsQ/Q6BVF7Mtu5c+S3witcr6h576kaohUPQd/VjtLZCeDPvG
-sc4ZvARPzRnqeSSKtmNlDb3MGwTmy8G4FVBKBzW4+b015U88Noxu29tLTd7AILmrY/caN/GyEc0M
-mUkM2kNSfXoGp3FvjQCspk9gSg1I2+RwMxAVRCZlE49bPX0jW4MmJEuJl5ncAzJHdfBTCLYTkY9H
-t5hvdBaKcIFg2ivd6fdBMue7aSrWGlro8FB5GWDqRGVAVOeetea4jMcsHuqomMZxa1MZ6m0bAmYZ
-140W2Dr2Ii9O9TKyLEKmIg+YuPjOWx9JuADGOhAT2wVHbZqz2wISPq9Acaz5p0y62mufK3WWSV7e
-RohGlvY8OJD4pIVOy8cTzuNc7Rrfr3Z1Zec73cgbb79QD9zxb8vhqx764pElTOibynYjVNzZwadm
-SssnRjk1XPLs2+h+QZMQ/7PsdDufD0gMPmwl3xYM7psyfrWXdJ/H1b6NXdjT37Wd/AlSks5UyhZh
-/NZF+TJkkFQCer1wrWMaVEfBnuJa2l2ZryWb03WuxWOfl2c/js9tmRxmqI4rQKEVmrUE32GYbE8p
-NTS71ihl6NhE4M5PQ5qagAaz9jAwfK+jWVPwdJZp9ZwlPVkynWFHY+bfmZpXRdIg0c6vDl6cR2kW
-HPtOj3wduYNJJ6U5fkBm71Xr78zx1xDbD5pDrpD7aCdv8fxpTDFxHvEYM3r1W2vqrZ2b9uK6GB45
-XaQoVXm4lPVOFeDSqdUB940P5ESBkwbTDjprP1iQjAOAxJy+AcwfnLyJer+9ui4TQOfKTbP+DPqp
-N0UPKWlCk/xZ4CMSrwkTj5STZty3Q23sdUsfwzbIXjD0ZcSuiWdYjstQzN1Wt9vmT0FQn+5r9zY0
-RuEEL33qvyQ6qaQArnqUas3BoHXIbn6nibOmnjhh6UKVt2DnJMoTN6MUoXg5yw6Bzw4LV71XVsE+
-ouufVR0Udy5pXqHN1EKO8ZsRpJGlqm1Rage2su0YBHDGLk76xfwzUxW4T/BR2s5Dr4sf7to38FAE
-vttWBLfSvlty67ftyEehi5eJcFhWHQlxVGk3mQPFp0P1ZRRavh0ENUVqyh4JtjHoZipusW7exT6c
-pg5xQBqNfx8b6feU1SlBNOreqoaHyXE+hql9W4PRsKVrlyUrnghIOPvk70RmJR/0vviA6eD6zO/q
-FQozqyO0XzRQPbQVdTZvxt74JZT8Vl3/OqCR2coei1FZaL94nnyBsp6NwTwg63ltk/bFT+tlM4rs
-M64IElJIPXtnRpIo/YfBn/aBoe1UOtxIqd0y37f39YRcok2ynYKRlfW3X3N55tzfi9TPbn+fWEtY
-1Z8TEWw0cl7YWLa59m5NBNp0RNoJf/ki4D9UbrYPhmljYSjlAh1gNI102zbXJDAOC+iCdIfPUZXz
-Vw9dZpYoXvKXJj7rHIO6PvyZ3f4P29amRGqCOIVEHzDhP1PbPdD5RHI6l8HS9ee4+JGcC8TXfsYt
-OIUVEJmm3fM84ppNzhqCbieGDqI/CjQBCEMT2tbo23LrNNZDG8vvlvazXeBWb5Qg3ePdoDS4fvHd
-aYtc5xehUFEdGDnUVwvmSqF5O6udJdW4Lfpxuzjjn8H0b9miv86GuLY6PX9QTuQrVqga0E01Geln
-I+IYXSX5MZOtCzMxqy3Ss1BpZIUioNa3S+YAghfwk4zZLwJBByjtgW4N5JVG/+NW8fOkE1oDsXIu
-sxy+JCBYbmzJhwKcJGJJA/JJ2dM6B0W3kZfQ/alL1M3q0k+Xo1PdZZ21ddRwJ7LmB5Gz4l9nl6m1
-+ZAJvCrhbTZBivEPXTDaQ9Vf07l+Tcvm2NtxZKA6YUfWNa69lETWkitBrzHHBgnXuvk2lbJ/08lO
-+jM18wx9KBSUlTwonQV4JjhtrzfQwC1H/ZassiuHzLeRFrc8NrQH0pYjmZAu4EmbnrMi2Lp4gy3p
-3HiUryFoVHvapHbJ4qNdfpyujGJyOsfhydaTc03DQ9y1T35qsUEY31miV7tqMAZSxhpW/O+saTsu
-xBR2C2pIs8IuJs/CartTW072TSG7OCj5CcTWzg7ifzKGSiLXux51myIBqiNDzlEM4EF7j0fr2BnF
-wVwE6VjxNnc/Eq866m6ycywSt0jDLkbiT31m/+qkTHELaoO4tjzMuH4L7V3CSCTJjfAlag23kiJT
-tyfE05UnMxbIV3Kyq/n+ApPJQQ+RI/n6fVpVZJgV+ySIt9aYXPXqu7LbD6xyG8iZrZrEZXCLUCX2
-W030m25VYU02pczVp7sU24nJgpT7EXVYfY1nzAvSOxhmD/RtAcawwXlJNFvWmXR4FKA0vKFi7Bvq
-OtHJ1UP5nhfWcZBzAxJ316womT9+yiwABtfCwlgr7i2QQnNXGTHgu7g4zq+stu518IlWrXIYb1/X
-xkPCpWJZf4BlOFjEqbHqLfjTyKbsLyIqPfFZEleZ6W9y4daR4Gd9cesopyM8XIsq2dKYAPlpq5O0
-yBvNKuAjA4FB5yNckCl8bC6fdSLccmKGp5HoK2CdIKnrHRGsqG6W+SB9m3x4e4jgqOs7ZksqAxKx
-5pUm65f+zBMpdJhmkiIwzkFFifnUpD9dKeeb3Xg7Nw52cyudEwyiv6Ph7NtNi7sK/BHeLiX3Y3CP
-CbG8o5ffijnZETL2autGBMF9R84PJ6K/aT3Z3HkGqQx8RYPh+JsRL9zVD+Djk/NSEYWpMexsncEF
-oZ3L9triyN96C1qYrkufW8MlnZJ4LtASGYQjks5tPoO9bu3WDkez3yYV/3sjEFu13UZ51sFI9xQH
-7CuH0Lc6j2hMPyrPI94x5pWKm5tqX2kaR4TNQmWN9RmP7pYqgWvSjuVe7zxCiEkP7/4a9afVcBa1
-s3VX1+pkTHok8VuDNh4Z7SJqH8LA7SLPv0sLDb0gGPCURLoGe6mQJ1lG/AHmvDXq5kkiAjIqmN4k
-n/e9/Ts23k2LKWkzpFOoaQOcI7o8zDAIswob7k1tMmFHqf3YDFemWSLSC4yS9sbvD4Y7Hixv4KYj
-rdUaul3uSIfJFu8O+0rpmgcNFW2Zv/arMr6rL9bim5FfzKGV+buUDySf/TE0eFAeSOcr+3eC+hr9
-wZ9fxzk+oE5HQ9fuSJZ+1aQf9cO8tTQaFEYgCGSVpFjeGwMa9VL/DXd3wBa74mU4sfJ94rIPqY9k
-IgUv8F8lB7Pw/5hGE05FezRKFE3C98IkNTc9/zJlpLcV0PQ4Prd+EjlcIMGAbAEPoyimk8ymUOTp
-zlhcDuH2yWmyPmIQRpCspQ6j+Z1RPJfBe9YeVaVdncI9+XQ4aCKIAkLoOQmKBJaZSP80B7Kuckh2
-01IpIaX80E6LYmB20zZ2tG7bR9yj7fqF7t3ATPcDf9ASxvnlPBZOuAD0n9D8yVAWX5g8Ptbcey+P
-y8geu6eKc191wwYHJBrW5L6kOe8Zjfn8lNTxxvVuTpDcSQMJtlnt3H7ecxcck6Y8SKdTRxe9C1+7
-qH53TesdBNpbHOubss2OcxNzjDibfI4fZf9almR/BtZrnyLGNLqNb5ChAI/5HFtppKMbLE3gNoQQ
-SKi1fWcoLsJBbeBw5CVHAQ5Tu5cAN1z+Po/VXrxwsDy0ur4PAHkok6ADwgbfik10FpwnE3yvNBoJ
-HmNODN/QtbFjNFE6z88+oPqilnOcl/sRIS00p42YmIrAkwGot+gNDr1ygq0kCJgOit3S43UXQZhi
-rt8uiR8c+u6ta5lmyJbKxiIaE8gFSR1JcqXFotmmnmKYEI+25tVXB/nYhuBBnlAcW+bbgj5rsLUr
-8czcw0Goqh43L649vPVJ7kSOBiaK/oOWYGK0zZoZ3sn8bZBn257zZMjOvsPnq0fZosKi9QRZh9dW
-5Bcv+U0008axfw3ah5rSYq9nFTmlaCkb5xHS4KwH7QbZe0Ro+lObMj4sj+g+NnH+1erPyEUOMd9W
-yj68tNVVgWI+1YFZbgcHWdrs7LqkZK3khCNEOerq6WhkRLtWYhl+a1PP8VIP0VibZzUDL9aaQWXu
-mN9iP906c/xBH8SxZ/rXSWonziTsDcsD1muKszdZZ89jWqVrJ0pmrT4R5kpuwyB7GI52OzsSOTdL
-bJhXA7IHaiSybNcRU21HrBeeOLsic+dtbUztr2Kpt/ZodyUCZ9rOQzVmcbuOa+XrHGPN7he4XJH2
-v2PlX0Se7wKR5oeyJa80i22uwETT+wv6Au/YJymNWOWka9UhMYZB3EjnaOQDXuvJCEet8bQTKtST
-nZchospdnPZcS3zZDNFM4vfgjSy1fgRtzTCZa98ujSVT0vG2+2LrOOR7m/PdYvghZW27gkd3PB8s
-LqSo6QAxKavbl8UqI09iFoEsI3B5Q3uST5wxhrFT3JX876Ny39BGd79cYILQRLsWWuSHvi/LWN51
-Vly2X4IccIUiHSH1zp2Se9oB6+aGg4VE05YMFS0ktSYVkV7VtO8WgfkKADKeENPMt7wnw9Wcmvq5
-5HA89n5X3/BoAG7UTH/WJlfan2nmQBsqYGyqhP3fS0keCPVssb51HU4ggv2JTMbT8kitinijrqSJ
-4qpZL8eRb3lx4TUlD4JZIBBFK2xedK3+lWvK3Tm199g0VUKULG/Y6SsbKbxfReOYDDS78/qJ6qTn
-JW3G0yK8CS8IG2ya9MWv2q80VE1I59jr67OnVmTJK71PPSuQczBhquepDLzPFAOVSawMf8aRAXDi
-p2P7tG5XeyRAwUUfFH/EFnn2J5eNwDEnhgjkX+mD1GRwQakL6OPXc/KAFBCsV9Ztf/SRK15zHoBX
-gGr/2pMAdllyHg/SD9Kziif/jh5fPmRMkGbnPpPIU5+SZnAPknSqF99kJctJvs6ripfE3awfbJXp
-BzK2G8Ka1TdQV/dILLra2UJbX3qVfakFb6BOsVqoyqDY+9rcPqlFh47M0/U19V1/lNLlf+xafh44
-UaSqbKSPYOan1sEY35TSXvH8JG/SoA8GYTEj+/orZdP6ezVK/y4pZLrzhkUewP6tUDqr40T1zNHr
-7xR1OT37WEFulDXJu5xvl+kgJbi9rZKHxh7loe3rnC4V1EGd96ObDT8XniOkDCm+2dAWd8oqC0Ff
-wfqPaJhOdcOvVXhjbjIIeCnFqHa1q1lI19AYA0BOGwiN5EGPR3//zzs1/fSMBCwG1rCn1bbzI50k
-g21PrA9M3+aHIFDpoJKBH7x+tvVY8IF09NATp95ENaxiRFkVP7hr7pUicFs09DWlzPfo7eNb3vKy
-a1eySEN8WwwomsHMurzBUal902hPRNHyxiyuonYuvyViFsKD+ID1VPvRhWWHfKpraGXwowfcEIKo
-1X1NGP5W4hy69uyWH1mlP/69mP6+gEWfv7RFfNZZCkbYTcWjQBSzXxOIVcwL//vi4GXJDS8lb2H9
-gMhb5AVDnbK4EZMflBwOnsNGDniY66ylCA3iWxGT6IcKC2Er9Q0HabkMg94UXGTcI80L+BiKJRU7
-vg+34cOudZKGJSzx3h75etATfFqx3kZ/XyYo+Q8dmm/1JHiZY2CRMUsqObG5wUU14u3vi+vjTG01
-OKVHbjn2IJvXL1FJvdtz7KP345eQPHvi/K12gmbJUKj1k+lZsdbPT/n2ibqs+6qtVrPCD9wbJVTE
-5rI+JHyFIxykEHQA6xYvhvwhsv74DXWLrtlIvjUXpwihUpyJtqeibr34aS9Su4wbnutJ+7GC+FWi
-KQw95F47RjT2N5DBjW1qr3QB8cZ8fple2fc+bAnd28NGMAOGSbwUB8Lx+39+PUkTJ/LFKUtZ3yVq
-fX7CWMUHknq+7J4fqmVcWegBuMVJmO9xe7X9Fu0Zl3ZDZYBuF/0RGa8f+YK3jkeY5pRgOeXm+gb/
-/jiOnL+vqpuG4EKnyRVZVrvHnGihW1gvFNnoB0lpE6I13mGN6/Tm0yIcKW+sTkgDi0eVmlZY9ZN2
-1mzl3/lO7++1qatOuao5L1qVPPy9OlW7TL8IOuhoYrK0sxR6cBEjv18prgxsBf/+qu0ERXAz9ENE
-48KsoRHl7Pl7R4mOE+cfiqKc+QmJTMVGwHex+GtPrEwgEcjFFpoDWv/Z8HEmoa70OYfXI63t+C8i
-5535FK28F5rmPQzpp9uZoOlOFe/SQVjPA0kEhzgXzXOvq3YbpIZxQj2mhaue8DKZg/4e2BlH23BY
-Yfa+ZRAVXU0Ycaplex5B7kO3lNq2V+3NNx8DZ9zZRb2TrXiEomar12Y0rhN7AJPfbk4kMFXi/Mna
-artYjXecF+u3W1rnxpseVS9/BxAeEU0EkS+9IDQSy9lRt4lrdRyO8cJfJp67s1V34BI590OjvSZL
-MKK/nU/9qoN0KdBhHe1Ooi6Ke+qYm1vDPwSd+h344wcSz2rvtvKrtrXLwNSbsQnZQ/NJLtU9ieKQ
-ymXODv1TxJg3EvKptJ0cp7fBsn/DMMDpyy9OsHurLtwPvFffVACec6EdK4vUflPdJhuBQD9VR3ZO
-69Dp4xBi2vqgqWwNV3VqjuP21mIGqIPqYRD9Q9uk3yidzUhrCN9yqr7bz7Z7hKmnv9wBmzXepqF+
-6uxqiVheFux/iV8/VL63sZT1grr16Az+m+3Wl862ggcKW2hJQ9KCWXACXxLx0G1Y1n5a1RxyxGF0
-DuWUaWiNjdpqfu2SjLtRBPvOaTs+XvOVHET4LOeOkegLt0OUJdJ8JSL295DaBxXEtLebj6myd5pV
-RLEbbAhaICV7utJFQOOZSaC+azTtrmozgcywfZlr1D4WKgCSANEqhn5vwxfYR4YzFB86fcjoUsm6
-OdeO8eiovgyDypiirEOaPUGYd0PySs79Oz4EO5wVjwZ/YEDucrKEwcVIMKs2tIqdKhc6Q899Zyt0
-vhFVNCzqVR/5aWuEuPf0A64tazsm9Wsnm3fVpm44LCPxhFpQ4CgnoF51jr0ZOKXwa/qsyHUGXIGf
-DoK63/ajJUIHs+mTHD6N2A+dhndjxqkX0gwBD0Fu9ykopvxowHYfGm6mTawX00vBwP05DnF21BZr
-COn41I64X8o9777YlH5vMlj6IPujP94wuxXoscclmrOc3iQ6hJAeLfk+qC38PZX20GmSPdtOSQ2X
-bgQlif5Ba+1n5F8/MD7FyYjXXsWkRynDSbGzHTc9mwvaM4Y8+TYa7RCC4nf3GOK6cKQzbv0F1l65
-Mv+TK93g1PR99qiONCyjcfKrZ435e9qn3onyN77kIAl2Lqn5zDloNOqxCk6CCxtv0eh6R4mlYUf2
-tPUqfITgqmNuTfGNsX1MmDEHfTCjzq2wHzmzA2KFjP0kKy3foRbgy3CE8TnZJPXbnHU1DXhti6J7
-ar85VhEno6s/FjKxsJtqmf5JDi78v9uU4uwICk82SZ+WO9G5HKJI5XFmld6ykY7b3PVDCn04z95r
-Fmjxdkp851TgSgwNNGvo9Rru3QKDJo1fNP1tTGOGKhIMcBvaSbwNbvJPlxTSDfkpIHTLRMQ84vSb
-dAbrjPIq2GQojCjzIvBtoIHyMg0FtTheU341fpIb7CWBfta11mAtN98bH3OQCSF/bGqEKH5fNv5m
-Ja03jjPZQHuDxwVZYwQI9YpJVO+DOd0vxgzYYKNUNi1rPKJETlRkuy0TIKFG+iHlCXyJiX55R2mZ
-fZFuuz6ONOpI8sIMLnQPMMdNrn9n47/ba0sTPIGKGvztJWh+fENVe4HD4uPvyKsUNnPkvcQLgTM3
-+YfsXQbcOtOCjeMprKPjPC0i/GdsNeh98Bffv9q55FmZ5/ipl94FK6UuaonWr2BbazwyAbaheyBA
-+12HSo7oP972ZsqG6UcYJmdzLs1rLviiwzr2vBTsVqErd/uFBpq0797VtI6kfsGQ9s+gjVLoQO2W
-g1uRsgEe9hUzPsWqxWPXpuKKTKr8KhYLb/JYuZ+YIuRtxmr3Mpp2dknbOL6b3cJ51KnXOpQ0j4Vp
-O8LvFKazHIJOxxZQodraLzg0QKvTFNrPVJQzJla1z3OenbhSNks5ei9SS5u7walpSlrSaZssgOKi
-ScVtHjxm7IbrTi/dbqevejQReI+mJpe7aoBLB+LugzBxV2f2MpcBoFfq7CGukZ56g0+fVkXEKACJ
-M/wxrTENk87I6Khb1JlAXMnOXS476Yg5xM1ZRovI6DGv3ZhGL5PdttLlBacusiivTx3gPUMaP0DY
-1sXGWH8PASzB9M2A9QJpe4gGiVvMGnXtqkGL3xaBD2tXQ/Q9Bnz0a6PW6kpvZxRdpAN8pIVR/paT
-KPeOW2sVAAQ4Vj7YitOYTsjHsnDiQ4zjaY8h33lzHA3GluTv9KfwEH5iufONm11rS1StHnkW2P4H
-ob15VFOJuBfpnvw0vF546+/srjQKmecBb123Us/pMcZbkO6qwskPjkHTat/ZfECjAIHE2iouiajp
-Y1sVvHjQmmC4ON7oYYsSptp1OXfFGsXhvTda1lyQP7VjFKR29kuaMSjCPGbtfq5H71r6I74y2lLN
-DVFD+b2XJGaYZULgLm2tFdHVu1yEflMxMvaKa1fX1st+ne4bV8/PRuszDA1dT72lbG1uFtTcPKWN
-vHissBXcFdzBZGDWNY0nOrSoQfa75V+HePDuc62heZPkgxeoOpB5xvy7WNMySqPW8AOwoNfCJfPu
-V8CmzSbVD4Z5qddVZZvwXPWvftZyU1VzoS08MS0oS/tvwkJj0QOE5tPTzsWUWkBzjL9aZLRzDnxm
-ob5mQSfHJqiV8eH9TW9oxo6SE80d7ewM/IaRw5t6GS5GlpeXlqyfHxzM6isRRfY8DUZmUrDrCeS9
-nXIQB/B9cnXxMKlDHkLaC0EylCAFeszGNdDHCoQ7iZOmLRRTAafAmvuJ6VwQ3PpXo1TLfd6u6sZi
-IOsCMc7innhWAymPsdO9YX+F6MwQhEMjGFiltN7wPtBkLyRWpl2UYqWuNk0PncmqRIDFZOTVkaP2
-mcLmh7mpW8KLazxnnt/8OLM6Md092Xg4H7AAgbXb4jDOhHlKfFkgTSMAO2Y39xEFpig2lZp/2e1w
-P2M3vBRCAy3ETS3jxV8PdTd3WWHGPOICtcMU69nDnJcO/nFz3Out8KKx950Li4/7gJN/2c/phMho
-SNqHrkjs89h67qfnijU7mcOoDdbB0idKdQly69eUav1uYr44lXzQqK6rGDX1qJyvdHLGc6noRkQ3
-0MHSON5C8XSzVFbYa0BcBzctp+kYTGsB3yJdzMRVkgXTXjVFdRZYezFGap751AwDXY3ce+PFbaSx
-TywEPeDtrq9C2kt03t9iz16IeXEiZVpmp0U5oxVZsYXXODalempYCb4dCWCGWt/4HGlUPsytoEnQ
-MAwG3NgzXy2HmD74/Ly2EMCbwS+LrzPdBq4DteV4/iOn2shtWHn9YR6D+Zt4R5+mBPxlrIc8ALQD
-JkqMvw36S6Nk8dJdFyZlSeM425dNFWTbuJkztNuZ492Abxn+p7EBqvN59cSrgDLjc7JOqNubl35M
-ki/horgW5EyAgJWAWXZl36Estr45RtxfWdME3jZOK4+pzSg/OdaGe2p72susu+O7pLGSmU0Y/lbY
-qNHnAA//tDYhU+tHAeYmrRnS4Pe14a2pQZY2AeY5ZmFpoQjqnGM/F/3JrPzqyYgn+Qw+UdKyDe2G
-Hwxv1Oe0pOrJ0hz90UMG8REg+49GvRqvslLlIyCkf/DcbiakeqivRtKI3249B2clRP7HhVyTsKtB
-fy7MFjs3i9g9XV6sC3+bKB1ur0+vbYv9pIb4aqL2WhusRidMm7a4TI4SdygYoq6iVDHRzHLXikVc
-gL0Rmhg10ouiAqz3MHsbQtB/2ZiZtR2C5YMcWXerCP54n6va3re+c0Z5fZ/j8dwGjVUSRxBjGzQx
-p2zGrq8Pqd3SYdkwDJfJQt8m7iMy7uPipM/pGLWG9ohGtnmg2iR/FKaId3ZZsJXW8VWomZu/0frX
-xuhom27TDgA5dq5FX3gfDq6T24Sc8I9YrPmaFHmmNkbSsxXUVA9bRbBn/rky8WQPpjcNh9rIg3vA
-qf7LGZxsX+i9/HK0oT3FcwXJipxqLwZBZWRhG3e+SVeRt1Cw3eFt3HViJOayssc9ICYuC0Nqx7jr
-aa/vmsW5aF6u8HOkEykSgRD7ckqy0MKUWeD+1407raMFqaPQ6pz5kxGxg6Bpa5QfuWoOscHu86F5
-zux8L3Kf61qZdnptYHFOhbS6e8oKrW2ZBPK5z9v5xMzisiGDz/yDkiwc+GemFBAV31jwvegS2LQq
-mKYIeYByE+I4AyxHNtR+JGeNRyTHuX3rijqNwPvaXV+g7u4TbQ6VWq2mCx3dDSEENxcN3oVuK3lq
-eiu5wUbnUV8n812iFfIImbQcbK/exr6ViO2s2caLS5/seaFJ9NiTzXMHJAFzLOo+vXoFeI9ZVhNH
-O2xAxYa7NTqtuGVd5eyQDwfXrnSD80j0HI14GlOAPpXHoWj8nZt71O/G8yyOSdzwl5V5GKqyv2sN
-OeA3BLTTw75VXXGRsASEUBjjUD7BSzQKes3v0RyTuYqZkNbCjdX1LY8zZ1HPTV8Pl9R3KddklAuJ
-wnGY6jlFBIsjekloyA3pL3hlsSfCD2mmcVFs05uECfG+KEpAm3hsuJrBB1FNLcHFc0qMRLFpY2YW
-KQ+MchiaY+LiQ+4lmRUaVYxHTD3xL99LCbApp+yr68r+OFo2iGs7GA1EVylQvpE2CIyX6MUjjnnx
-Y7O6ncgF6E/5PHGeA6DFNwsU6mzPBoj4XBlvg99b0Mvs2BUdDHDvwF8yA1HrEHLDFdb3f7G5rAP3
-rEqwU9SNwPoWtuPfFovT299ON2I4unfhrxeNB8gJOYON1LHT81/SoGo7sDJkfkdPA6Kv2Q9AtVJ2
-F1k3zPMddpkfe8EKurFrPXmztRLiVOHbf9RRZe5oYGQBEHnPzDRAIoDqMDH8BUbp80KUaAYApW6n
-f5vesi1cBVnfz1+48RXhNBwvlJezabqYGok8oM95XnkozIyhJm3tWbJq7eiNfdW9p1SiTHP05Z4q
-tJUQa7C8z+AclHURfN/W94jfCaex1EOeTd2OyuB05zKVbID12hO6Ke8mEt0PjYFxwEA+OvOMQ6so
-PX+/aN5ppv5ii9oSYWJTMhXEdbjk2kSVEkQAfv1cN0PdQt2g977c5ZW/XDV9wlE/BO15Sm2TMZD3
-WCN7PlDZRrCz8px7KzjhC0Cb05QJnYb+9C0Cvlb6EEBSyyRkW6u4TJlSeUqxRuUcz194G6bnvFza
-J+aQ4ALBhYBVZ8n8K7atWj5YvR/FD7EqDKt+ZrZP0gHlHKeZHkAqJtdHLkguMGZ6Jm6FXTIdUCnZ
-PM2GMJsSO/743wv179Lvrpb1n/6/C+7/Q7L/f1ikv2ZO/k8i/ce6+0rL/3CJUqez/p1/S/Qdesh8
-uHLP80zTcLFj/j+Jvmv/yzddZizk8WTmebgB/q3Qd/5Fpi+6fd/31jYyfKL/n0D/X6Q2rT/R0IPV
-Y4p/9H8h0McP9J8eUcvDxGpwDlDrrhtYT/9br4OYMopfgeNQoqWombjwlzQUU1o+tbrZvslAz74y
-T3p/ikI6R7ud7GOsVfpnwWI7hmksBUa5pkHCXk9md2dinyMTx9LGb8lq8IAJdNRQWGkxzaz5bP82
-jLh/83k2/8a+hpyA/rzyyZYlQo6BxvuvQiToMRRZFy2TFrZ1JpxcxJTzDrAiHUKObseR09yXgU0U
-UpqhPYzG3Omfe3BD0pXSyULQMioNFdyMKzys03gJ60onCUACWHyXSNKeZp3jZF/ZncR4xRy3hrM0
-y8ugGQ6G0461fQP8ND2PSqxe/Tl20do2nGobs6rclfakEx5bUY+5duTM2cSesi6tA1wT2g1ycMc1
-uiGikCX9tp0lfQw8KzHg3hONUAot1558TZff5tC57zgM4dvmQaFNzkWLYtB39eFkiFR/x+eu3syi
-6eFSqhkZkW/2efGgc/UQRGroy8uSoRhDrZAREPNf7J1HkuTIeq33wjmacAAOMSDNXuiI1FpMYCmq
-oKUDcAB7erO3A27sfYjqbuu+NNLsjslrd9BdnZkVkQE4fnHOdzS9FQGZvMS1Lnv7m2Fh8UkmaAWg
-CO0/o1s7MK4sT7vAIFw5HC1p1oubV1boV9TMdojd+aIJWHTIaJzGZBvAxSVevJlCcwMGw/yGC4M1
-t2xDtrMm/o3olOWL4/U+hzov7nDWh1Z9D7l9uNWG5jGClX5hTdksUTUprbzJIa3bjdl1zpNmLHmM
-xqyhD/ZKFjuGzeQJpTSyMxDyxiup8rw+gTZTcZZdRwXjU6BfI529ZdJS4ID0cf71CoVLWROxvIq1
-9h6HRgG+MhNW3+eQ1ErgOVxX2bKooc1hblBhw/jBkR+/sMDiVVahoP91lM0jT1Xj41wuvrdUlcF9
-JENcemGoEkJsSZrIDnxBOa4aFl0wB+JIY5PrXMiOQROoF9ySctn3h0wk42oUr442UC8QDiKjnWlZ
-zjawhwFJBeyMZc7F41V0cY5/MFYebXXCI5DhMxYXclaUexpnFN7ICpU49X1KH9a1oFJVRIIyEpfY
-Gsi+7DUPFteqL3BoUCrVdT5+a1C4xaHl87v1q06gcArhhhhzNwgCVzuUEDjCjeCUGoXb7GbQ9hdx
-nAG3gbWboaCDn1D5SphrnfjkocOL8xE0QHp88twQFTf2FXy0Y4Yld2JsBZtRVbYDsNlhWsvdTzGx
-xPW852zjP8mqjr5jeq1vox/jDw0F6hKSk1CrzNU8gW22JLdz2mePZQhpC7rb5Lz2IOgUIRGt+2SP
-JSLOtACDsEPoZKHMQw1DV69cYt2dUYU7jL+EIGVBJp5dwZjhKJwpeiqLVCOJwWQ7YKIDmpS6ie+s
-OsaAXP6B6JnuyhnNk20nq6r20oRFQtlxvYWl5qMrzFcbMAZYpIDp0KquZOWu61z7j1FcMzyg3DE5
-IFIWpTOXcbAL7N55nLliH2HUoDxx0ig/Juj02k3XK0nzLwdiUuu+EN8dazAgIrTXbFyRKvfbOkD0
-jH/D6jesdTnK6qCgla1Cv70MjAGbb0Ov7h0G3F9H5lPc+6mSDX+N6ACUREMWb5ROu9cGZc6VMGnq
-OKPVTWozd2B359nXllObb4hrgp9ma40/zc4IfipH1mjtECRNy9KA/PHQVzFrEgTm0ExFYaFSy9E0
-APQgu3AUiHe0Roa7imJGSysVzPYXQNr+AbwLAmgVuOoxxRP6VWBksU82sPS9MF0UV6OvMLQnA63+
-LiTwtoOiFTI0j+NGPA8VmnkkK6gJXMyy1+S0hh9Bt3hhOEXuAiPQ2Z55GHdI2MkYYHfhCPwfBHvv
-mKArzisx+uEq7pPpSjf5aCI+1eOnRzpmtpLG1H2lNsh+QkdK292Eo+XRTLaDuUl1lr/3hcfPjGu/
-HA8kt9ufjOVhlAXTVH2kxLXTAFBy3lipZf600FNcq0lZHyzkGjqPRrkfwzKDiyWpDSjpcnUKku5Z
-MP9AHpX1KH4m03KGQw6qeNo0OimwI5jGJ4083b+a2TckVUdUiKrmPL5Jk8ahpyiG8ofImeDQugdZ
-xoXv5IAPxry/MIqR36WNVOdn5Drh+2TX0R1iZHXr5nH3FnfSR0nKr++Lkri9GItGmJuxnn0+t5rN
-3zrPGACsKMkXnLSj8DqYzpSP9OJxfy1Cg0FFJ2DD4YxR8hGIo29ugO4kt8IqiI6vzUTigQaKO+4G
-NQ0oaJtEevsgzMdnqYq4WRGi+2whUXlyWmlj0YAL7G1SmqF0g8kZepoDVTVd4W7FFsypDU6X3dXo
-8YQRBaJ2u5YgDYNo3s7EgJepxWVcki90HcvZew+6AiYd3bfxk54Ut3s4OM5NiPL1uW/K/FFbMNM2
-ymekjYtMMntedH0rxSMVy6Hrj/dZHskfuFvdC4PT5YgAAw1yxJR2OLLF7rIdGDu/W2c9oZYb+A7R
-MYXA4+xm1+7uVIAFfTMg57tIwZF3x5Zl9Xs14AEb8fnLHUHtPGCSYO5PXtQG90jwp3HF71yQ18wk
-OFzjum62vhi97NAIp0wZWNXON8KvIdnijikvnLmdnx3dsxXl4QPNKrQmg8aYj2tPy22C+Rri+bV2
-AtSjCLfIzlkc2eweJJv/rBt6bgors7aF43fYQyAQ16s6ZaqyIt493SL96a/7KZhe+8C2H2VmRw8S
-VxWIo7FRJm0zALaNlU3mz5BD5WjAzKzFosdzcRy67JWSGtFKOnW3UZdiYMCqXD1yIGiMKp40b9jD
-2uOasDAnXclkcKYtWL5CrlFlm0c5aN5/MMPHWxuF9rwVx4DzFTVG+GTWjnpxkiB/x64wXfQtDee6
-1ukTT8vgxddD9W1COLht+7r4TOUMamCcRkYg6HVA6tg0oEwjZ1SEvar5j5OXp7vBn1N+664XMtDD
-lDBuhROSTh9x3ETrzMK2lQfuIFap1YOc6wavuRWV9q8nWEsX1KxlfRF67aaeDPk+TEpeeW7afuRJ
-5rwA82ObqGjtP0EzedlqxBlI2clqiPm9THNmqKA4PsKIzfu2j4PocpbNyPOTX+hV2GdmsjKjsb/s
-2GL+aAEd4IlToyWPFqx9frNjlbwZMk7e/MR19JZCq8UfNWM9H0ZU3WxPWuort4vCmj9OqmYfFobG
-USaAUbqpHHFUxBZFhoorv9/Cq5vK9QBkumLj3vbBJs3K4avPk3cVdTI5OOks7mI2Pw3Aw6qLsfGQ
-3A0NFf4lfCsyjTlHBujWtdsF5ckULMs4ZUXrHbpmYKFCMPmid2XGlmwNR4JoroFj3IbQK6Z1FwHh
-Wg8FtyvT+mbKLwyzsN48Pwq5rMqO76fsB/PoVO0BP7BxkRaajrn1UYtfehOdwc4uNCUdLlG40liA
-lh1Oc168iADehd8pSr2sWvxSpV+xuS3dga8H9oTe17da/hyJBIM3Ixqq4YBzhEqz1WwbkU7YPNPT
-ToMbaLuZasZxWuBwbYt+kq+gZhwmiR2xTJcf7KnB4iEQL+vhDmmzf9B+hJJ5zk1x4LCNw23LD5kP
-tmZ9sGIqvUxuQHbOW4OJDX5dvRgXzAn2BiZmC3ortpYMQ7MHNxYv0oJ9aPWg7yJ2O4+s+9F6znE2
-GytHphq0uBN8QkY1YSZPY4710Snxv0qWkU/CYGWyAuCG8Q5wwfiusj79UQ6LXSzH11juEviKp8Ay
-nOTotV1w2bbLRlvK9tUDdwCx0Rjil6qawnAL/TxiBJIyCFqP7hzQHBSBNR8TFtAo2bjw2Z7kOAYd
-whQEhBGZxLvSbRceuFDxVdf2ksfhwD+vW594ACreqMN2acj8B04dA/JOkFOLt1lNm1Aq5NS/kpZ+
-t/Xf/mLx/zKq/8kK+Id//ff/CbOL/zZc/f+ghfh7uvoyuuBb/qALEIbuBUwpZYBa1ce//+foQjK6
-AA/geEt+qykZR/w5u3B+c5giSLBTwoUkYPmMNRR+6/jf/sUQv1FKn9NeHZdnA//7Z2YXf59c0D8z
-B2GwwvDCsoUP7IrJxl+CHRZodWpFOEy7qO9AvyOly3B3EfWASKMdsMKXpZg2M8h1mi9DW8MvVMV/
-GbgjeCv1r2vr+P1v/7K8AschcYq/3bIdQTrm319BbXgc2Z0zkm6FsAfqcKPDw5S1xrvtF+FrLJUV
-b3jUiVeJgTdl1K0iRvwQTpnk2xobykQDvm97g5VoSk2klr1w+PmXidTv1/p/nQt0fpVkGEB58DCD
-oT/6h1dpJiVdL4QhKh+zvO9Quz+ixkr3//3fwgrob78Nlz/gp8OvQwksF6zE8tv6y+cRJZHKhojp
-aKTaMF95Z2JzpTz3KwV4Rck1AktxzmBnP/TrByfQ4023cJ99X2UgA8446BTp/7Q1lAEm2mhB+9zU
-hGDpNcNYUNIR/Yt/CRpIi9swmGLnKvGj0XpwKrQ625AJL2fnFKT9MRKVDZ+6GuPm5MJdoIRq09na
-id6tXpjWQbYmDQE6mJPFNqPYltY44rzC33uWpVdm3bp3WsRMOfzUaMqLMeiMYdcm2YyRWGFp2/kN
-y++dOWZ5sAF0y2GlW4vj37FL/is6kUKDenZmf40oLc9uhzO3W/mlR25YN48mvYZAy6FOyie+5rks
-c+re3CWpcD1ZcXhwHSJlXmLlIFNFFdONGxc8TXJYsgrK1xol3HyMMhhQaKkcHqiJsgLUFUD9qZPy
-Oq72BvrRds22M0yOyumxsmvRZVdcsICn/NofACJQdNFxoEltAYIp67VII9jIBqE4zD/AB7AXoz41
-NxJd2WswF3G3TfMAB2Wip8m6imTFih1R+WytW292rxuAyy/JmOHPAVzbIQyeIx/t99Qpbs20wx0c
-Sk0pMrYBpv+i5VGws1ptts9lwATlyJLFShnFszNcN05q1s8RzJLuume4sTyRW+fR7drcYRyQGMEB
-a6PpHtFZ+PKow2IUNPduPb0Xc9kVj1z9td6Uvu8/1a1tVUcVomtcEyVCt00ESPMtO7s+QbRlhh4T
-StHufX8A6Yi5K2iuEkNqe8WOYzEK4orFmV+CGcIq5jjJbeEpt8WZPyYAllIBZiDzSrImKlEZOEwH
-BBhcPSkAVofiZ0v7YLKjzABSPo+RcIrnUBvFN6VnirETNjNIy0E5T26iJsRPGM7Y2+pssi4Ri2E2
-ZH7p34eiil9TS7pfZtGY7XGMayx3bqnHg2nPsXGtG9ft4XzHzauPbVfTaAzoyXDV3OdTlX4z6O2K
-Q42P5K7W2r0jjS/q1ok/tAi9RIu+QDB1Yj7gjQ+wDSduCZWFNTy0LDD3mlVogwg/dKjpq6CVhxnu
-MB+prwoU6F77kwILzWU7IW5cKNIg9Gr27MjaHXxkCsAq7Gfk6tcCtWe2EnKUHzjfDe7xlAcSWhGr
-cbb0sPqQph11covpe+f6k3B2DmOxfdcxBVzVhIOZ63qc8B6y3gvmNc1atWktx+r3TKyGN9hL4JBp
-WWa1ltnAB5hMOaHpgzHjcp1a+KVHUNXehPTdB52g6oWpVSejZrA9GWo8wX5C8JimpXfICpZua11o
-X6AzkkG4EstfhavKYp1Tgn511q3A2rCxR4tLEK1BjKtotpadHAhoYmLUE8Ds6ElGY/gzJlQTSFlX
-gPlPEKAyNersJ6+SrzlO4M/MbPEpJFRmSxUF7SU6072rSMHNQx3j6oNXj8k1z93U25BmNOt9aOsz
-I1yxQdWiAULWdhIwgl6Q4glYXibwaZ8+oliFOZ535Lfgc1xY5P2ZS64iCaO8g6ga7bIzuzyOFo45
-/jrvWZzp5l5StBfIf+nagzP/nAcYLHR55qLLKam+2lR131EvaEWNeMxO9gJTN4aZjuVMWB/tBbY+
-aP2FYeUuBGWIEuIXkT3HXtUGRgGExkPRE9TNS2WaJLQvEPeAR86blX/VtE73w4J591p8cJqArH0v
-4L/jze++p7ZlxNCcAfGlWRnP1kKNz4YuBiBfLDD5BGL9m14I80wUnAJcDtz5/oygz8Iegqy9kOnL
-Kc7zbZxG00dcqEv3zK9H5yoe0L3Hn13A3CuD9PeUnHn3ftJjI/Nnq3qtE4uBHpPj5rrj5oTFdcbl
-T7/Q+WeMPhaReFq7C13fTS1A+z6MEqD78JaxiXotlr06DjSD5YXRPyd0cZTfC7rfTuzyIfsF9F/Y
-/tEZ859rL38mwgRrbn8OAjCCJRSAdwqbILDrb/scGjAu+QHYcYkScM+xAuIcMZD7SuJaXZIHqnMI
-QXkOJCiWbILxHFPQGyQWZBBB5dryliAD+CkT0X9qCThAc0nYgb3kHiRFFLk4aQdu6vkcjVBHlqph
-SC6RCe0ctz/6wgyKlVwyFaAT1Bhul6SFMk3S296EJrCNzlEM+KuGF0aFyxHq98vQ0bWxSRRpHN2F
-5ziHwKsxe07glMpLFIUNK5POoxSs8jG9m+wZgMoE6g8I8BIV8b+Lz/9EJ6MTsP9SAC78s9+5Zr/z
-cZOP/j/+79/QZL++5Y/mwfzN9mgOAqpBhwrdpVr8HU3mnBG4ggUVObemEEtf8QeazIJaxio0oK5H
-jk0Q3V+aB/M3fpgpWYwuK0sA1v9M80Dg4t/LVaZhJitZVkeeTXBZsOxY/1quMoM2QLZwKEZ5nBAd
-4+CFnJlYVpva6szDr1owG6XzVAQUM6vQqSeCnDMPpZzBPvCpsx3FlIjcBSJT/cbIdwbA1RvPlbS0
-9BvRNxgxJpJFGC2D1k6Gzg5DlfXDKBGOHpJR2IjaO4pLNpBS3Qk/dKPNUDInBsBLltY+YQ2H0oG6
-9WeJ1+IHTJL5cfGOJNAEiokkN1/G97VlEppt+FPXQzIFF3YgaEGzqEz9rjn0KBAwsFo+BP7JM+H7
-pIm3NurKuS5Y1lLIUDVnK8+UhlpVVKtfCEGD787z6h6Ke0WdPCsjeKxL1c2P7KRbapw8svxDPxOG
-Q7xzVL7CwHOmFSZYNz/Fg2eh/MO2KLeFcNzpwrJyjseoq8lrMRlYAIjhfNwwvnd/GLOO3wfX78Lt
-KHzKTk26TLaGP5N0G6Yt7cvk1324tY2WHQfG4dpZx1Unn2wm+rf2VPX5QUu2BOB1akQPSlvjfdfp
-VmxKjvVihafbt9Zgn7IfKXBWJptQ89a+odgrhqbhARmIMmr8Crf+C+MVxjzKT8F7hk4cpZuS6zTn
-gU86yKoeB3mDoB24W6LD7jsvUgzzcMsygsCwjjzGiWPC2mVxC3MNrqZYtdLAaVA00r5JXSwW66QO
-LS4XN7NxOoxN9F1l4CRWXZFM4SYpB6B0tTW3r8puhvqSEY8ZH5C4A6BxDIexEZBYEEx5YMt7KqKa
-Z0Ljpv1aQjS5bnFSRNfQklO1p8Pq12lXe9EBeoB/x84n/zIDbX+DwYrY0Is4fA8GXDQbo0x6lhvs
-nJcFXt6vDREmDxIdNeT4FHE4OpXGumPiiwDcb90fI8iAcucjgQaJETUAvFy3xuklqCeHObtp7L7A
-iDTHT1hFoNyS3JR9zSTjIkLHT4aSWL2OOgV/gbbKEzsCQMTTNC0hxGGGrFIjYkS8Odf5pdVNLpdl
-BiBJadmre4obzzpwHTBn9vWyBwU7CFQvtviIVn0SINYtzAmXlFnIdtzGhR9jbZisqtsXBCHD1CpH
-6BolYVA3pW83/VVZyMlCNq5iHC+TpYkWipMcdTZWxsOQTKV35aO0qaSdnWgsBNfU4BsPQMBiYr+q
-DMB16EXqwx3i7maBpPVbFJbFXSUWf3Tkm/aN43SjPkRJh0w4SyydHQabC3VjtPPCXcnrZUIRjRhE
-Z7+p9C4vQlA6TVnqTYRlXO2zkZiUlWGPYMKczn/TSAI3udL6DQ18O18RWGUO635us7sROlx1aLhR
-OB8KWeOAM0z0dWna4tEqHPO5ZIUNt6aohuGijdoBjnTl2B+uIRjQ+36gj0HpYjtJWOc+0mnX7rpC
-43U7sVMFkN3nfCQm7B5g4C7CJBTDiX0pmZaX7BdBZK3cJmheLEPAO6Ch7tNdCdpMrL1GorlEucsa
-VeKA/InBHv5cDVU1W8Vj5DiIVlX4Iv0YIR/8CM451B1gC/rWU/0W594M7qMR0rzLfDQMxxp7RHVw
-0BBcIUBvWBFFE19euX7/bGSU8Nupy6IrB/uE3FZtWVw5SZ6n27Kci6euTmgMWgYL496l5cQ7Ikme
-mQbw4QYQSYvuMJ9f03yw3/M2L6ZNmIT5Vww1VW89NMrNqq3j6TJuMXfuHNWIt0q4QKisIFPPDntD
-bt2h7sx1bNkQ0lMEMm9THoUXCknsI3CD9CEl69tfjdriqsLIQiZZafTFBal7cb+eUQ4ZK1l6412E
-zNdc96nRX9mDX9eviZHHV5WvI+BGJu6/vXJSqqABB/a7m/JA2M5Bi2iRirOnv4ltdejgWHmg+PT4
-IAdumnXWkgi2ihMPM6qF2fOecVuTrQmyUe1Dr01nLy0+ZqBSLrcGIuVm2pLo3nxXHqo1icoMpmYV
-V7eRD59ni7bE7jaWzLA9LOMtwiJgtlyxmwsBfPczUSO88u61G+gguC88632ilfdWFKbi0fTD/NZz
-kfqzZGOMtBJz692YYjwZCDF4IzOoCCKNCyiVciiWDtzDLElva4rX3i38Fy0KAOsEJrBNQBcO9knD
-v7+NMAO1W6j1/WkoeiYdFZoc0vMicEfruZ9gPGHfG/0tkVGsiIeZDmM1EDosAcdV8o3rP8hPqQ7V
-HbE5k8k+FFbEZkjCiUNqnDADMZgp17KxynYvGpXG68FRNveyokdZd7FgZc0yotoQHFm0hMiN3ECI
-3eWPIGdEuK3d0cnXZumhmGeshJce1f9bhhg9o/ek8sfNisN2Z/V5hVCUWPsrxB84kBsGtC82VjTQ
-T67kk5qmeMHx+GGDQ7Imdpwbl4QrkAOAwT2A4gL3s2YvVXO9i4PXaiE2UVhggGyZNXR4zQcMg4Tj
-zY+VnnhwBrC2feDhRv3Mx+iSycdY5CU12s7ftG2GjXvMTPcH22HCM7wYVEtavXP0NzwanKT/aoNy
-8DhUcvWIjagv1o1l13Dh50CbmG4Rf2+y3mouEPGnSO8H6UQ7sG8MfpIgDB4FgkqW0djLWFY6nmmu
-EbTP10HtVB0tttG88wwnH9ORwr9LIEo122xeCqE+KgJjg5+GpW2Jevhl1g5nDWOzqd965SBRMNUs
-pFlWjhjBkcdAyuAwh9tmj7nxVk1Mv9bVksKKYgZ2GHyjSIFeVjWq7yAnY4y1bwGTlsh1rMxSwT5d
-pW3cA6pyl7kNSQPprRlE7Y7NfF5vhhHh7Y77RektrzxFtyEHDpmhTlD2O3EovlRIZCeP2Iw9EPBt
-6gLb67qXODbU6xCj/s1Lt8NkJXvzUaGqH9cukOl607hNfz1a7PJ4OxnJ2Hixuwty5plEoTkyj4bf
-d3eFwEG0GVNl3kexriqEdcT/bVrRZChTHcURaSENu6sz0zZXAneVf+G2ddCtFZuzmlV2TT3lW1n1
-yeadwnQiiAYcVOmSghJb1cx+OhXDHXt4baxr6tpo44W4hRipEQUzNUaPgczE0rDBjC12FujuYC0s
-HWNQdGcL3AwqLZrcoZbrOUqgGJlu6V4zpqHJGznwebzUKWozzMfkzmCgwMwh8vfZ4LClspogh5MT
-AMpI53hK64ITaeVnkfk5GZ4AFjS10QM+NVpQxBD1vWJCFW0z1BSEbjG8k2vbyec9aIBU7AidYloV
-DH7kXfhq0pdmngPDVU1l7THV2mB/YKjgwrUkA7KuWhRSs71cLgnz2y+bI+WjGIbB2dvC7A0ifhbL
-AFOcksskLLJvdEmSjHbiND2ycfvmCnpX4R3Yu6XUjQPGfQRnDGRCsE3e1vJczvF4xnK+xkDr7Mc+
-yUOsZtJjlyYUekWjZ1++TmPZHFERpiS8gYw+Gu2g2+1sjhxRsdX4P4ak680djh9ZsKe0zDfTy5AW
-IIlDFGL6Xfwe+13U7STlbr4TqNiYDUJpsPbAZ6BJuAlrX17xzN7Dg2z3Gatc/FSuRY3vwj1q6SXM
-KNwGNQg40g9CHOh+SLroavSGxoLDGtQ/TNyCGvIkY9pNNjQF5Ei/7xv6nrL/9DKfRqg3zExBjRbF
-p2xtGzs2scFPVbksH0dPe0i4zJbrL3YKm1fSM1w8CS69Fn4d4C9iI5vy5FPz4arP2di6OfaI5RAZ
-uRJwUHFzGXHLj+XIafdW1Hnuqqr8BcdA7i5PxKRx7Tu2BRMf5tAZOxn25d5RlomVPOnS3f9OFf5x
-qoB8xAqWvdC//iFZ/k9zhfuq/P6P/1cmf5NU//l9f4iqg9881lSe5yPQs/hH9Na/Dxdc9zdmBMwV
-TBZfkrUc/+mP4YL3WwBmjj0YW03XNs9byz9XkzYodcow9lcsFOl2xT8zXRCW+Q/jBSTaDCtcl6WY
-xf9ReP99vOAjpyhn28o2jNN++HVaHd2k7o86sRcX3AAGoyMQGPB+cOEQ9bYtBqK2oRX0MC0D8VY2
-dfdmqr6sNqiiMSk7MYnQZSxPM+xEMGiDPe1q4wgCoUAF1GdXAyW5uQoMujaIpNYhcBNOxV7b9nNi
-UfqzaQs+eJ4MW8K07De0rPXOi3R1TNpm2gM8Cl9T3gk2h8iUi4UM55a0FJMGWXLQmjihhrH031u3
-wQ6begC+7NzfMy4siQoHUfJR9ELfhk2p3BX01vSdmbreGRTDL4lraVw1PhUJ7x2RERkvM7CJaMC+
-FAq0zZnwrvtSAgUM/OyzxiVNOqepX+3G15iicZuAhDXr7USjDJhiPhFYE6FSy6J7kabHkezMNXSY
-4hPM9iAPsNHVJ31w0SOrKL3XARmYXiWmumIDpPZDVLII6/mtxHKxv3QEqOxZF9vy04R//T27kXsd
-NLQR2zGggoKcrNRL3xfVW2kw/8kBf+/EyJMM7a/auVAuKQZNedeYvt57XZggbqo74tv9DBsWmwzS
-idsrtxrCXWwx+VpRQcU/M3Y234QKGc88mkGVE5S2YoKwaJrD9IbHI+Zdz1CHwgV7UVTsnrrYjU9Q
-a25wPT/gszyNDNptnHZtkqt9WcJlQ1TrrKDlNNvGS/sXchzI00AU1PBwCRpgnyX9J2onVKyy59da
-j3I+lbq8kxn/0dBAO1JsbJGXkTbJ1YVgKCt3rYNoP1wLQ334uoZwUZxCpcSd3YivlgHRPnfSe1JE
-mn3QeWKvwRdvJ0WWN+zcdMsolsxs18v5AV62KZc47QGXdA8ztSn2FYwJRgt5JPYeFpidiscWkwsK
-N16H7wv4EDG5mgkQlgtMg9YiVT8GspFXpVETRJgEwQu/jOwVS31xR8qncYzZym4BTgx8WEiGlyUD
-PTw2c58rYMDcE1dF8WrqqIOWg/ppainbbSTot6kzhMc6isYnq2i8vWSlcB3lefBsInjRKzakw7Vb
-JdaJeE/jeS6n7joQKcOVdHp3iw48bxDjrI96Zb823Eq7enKsGwISgS+IOm7ISvTVMWB3++aEwxa8
-3SbuyNRa09YGrEdd706a1nQBViakliqaY10O443lGPWrVTaPk2tZt53fD1ZNhoyjjMcWo/3k7Mwu
-Si/Awts43JfdNyNPUsfxDJyS8cnowhcDlt1bNQI6AvCvdwCvwY5JXGSOu3CsEngt7Nu4ZRf00xnB
-ZlYtiKNfLKSIL/TRsH2Y4dnw1UtAvhQXu4ys4juFQ/rSJ28UThZfqK1q2ZsHkJ8ypG2MQdLafsvO
-uK2F+HSetilivXZY5SGFtcDIzAgcVcaWDZKS0D8It4bNtVjrqgzkhGYGg6x4+WaaRJIAGEOwdZSR
-V1+nXhycPJ1gdivGHDyw46bhJW2a0SJ6gMq30jntBjom42dWYBJLcLQ8wZfsDh0KDWUxjwHLe5jh
-3p3G1B4QTHnGHSKz/pApXTAPgVbMtJTJmwa+5JWI9te4OKHHmOAFoCXlxQM7XDhHYUbX7WbF8ICF
-PNk1ZhignZuy5nIe4mSfjiZaPU95WyTD3QY5JEuvcohvvNT5TEsSnTJUcXt/jotvA/nue56gm92o
-qKWpxke8EbxhgKlJrW9qF7Uol4SLVLZJqOFrNX+gFrziRnIOSTylt2IQ3s4IRb77xd5DY3efFeDf
-6LZh451/9xVZCVkhF60bCyXC2Vp+x9B2RtLLgvSIWTsj/K23om+/ddA4gBPjyLTmyQJJBIgGxDsK
-ouvIcnBYhACSoLNiXzxms+ZngkYtN07A5xv1BYgtEFysgpmoPzrMhNh3E3ZL6w64TmvbYkuouYRm
-Yz6oVmGG05PzhEpjccaWOBg9UKpPBGvUp5GxyAEFG17EWNakt/ITbVk0Jxyu8T2BBQj45hqXnOeh
-pzPbCRWfo6HcYSlaHB6aqylqmvgFYyKUE7Poi/2vOyLTNF6OmkpspDZvyZwXwJkNis9MIZ9FXs/b
-//USKUUgqFV9+5pVGCpT9oLfGGJ4TXh62GYtHDQzR8iA+sXGt6cq03nqvc6oNwjf/Q8wCuUJ1aLz
-ZCbcqVz4FgJDXRSEzZ7vBF2r8VM38MuqCMpEZsXMoc9AR9OEmRBxTD36xFKDnkqGcE8IHxaWNuYP
-80V9mWlwKGCilu8iUAA4RgPinps+RV5XeYNxgY+T98lK+hHmC99RE6vF2xWqaDvkfRx5D2WRVGu3
-r8y3gcxlEAXCgMQ0SpswL6KUtxauAcbBBV+vmwKWVmsyOFsNJQvXXUvA2AZvHEAshTzoorCYea4d
-xPyXIsCC7pG9gAMe3wUP5UTvLAJmb91YIByMi9jYju2INSjl93RhQ6ynUeuN+YoQlPlBAkliu0if
-sXht1KF24lisvIiwLqL2zPeZbuU0IcUm9mPqT+Zsw7myvQGxaph5d1DJWpKHCbh7ldjAFyeaUzGF
-Myv96sLUfPZiOul2SgyTKa82mmM+e96xtY3kpgfw6W7rxu7eFD0MiC0gdSfLs2cC5HRaIladvf4+
-0Gx694U2UFwxxtxEfNlGdAzwVkZlBz88e9KfopuCU7+QvJhpvo1xO98mw4BzWIVpsc75aF6aGde3
-TFPvXseWmQLZjON9W6XRMeSuo6RKTPuiK4R/VRfEN27r1BJy69t9uPJ8PzzSqdbGAcleetk7VkvU
-bWMB7eoce5khtXKPyTl/HqZArC0Z91dC1f4piqNwj4Ct7jC09QSGVzksLAK+qi2dGbqNvCfzIuU5
-KdI6+JzTSOEUKtrghDOapUeX9cDiqgG98Y5xtjoJ3eobbvrxIeyt+nkgII44VmukiB0xlKURx88G
-UwWs/pa8EGsqjVNPUCT6Ap7T17OcqfpmZz4hnPJvueamq2nEaiyqwGdYzfgJY5hllgUwd7M6gVYy
-n3s4cHrF24MrwspjiU3hqer07A2iYYj2KSAnhjdFTgi1MwXNt+uM0NWHjCTm3q4VzwyRXolyiedA
-ZkWlazpUztsKz+AT/xoR85jbr7Sxrdog7PW+oXAhAUcd578gC3MfuTzdq8armGWRCrZH9+yRNU7s
-izbF9NCT+L3Emg/10db/n73z2K0bW7Pwqxh3TmNzMw/6An2ycnTZ1oSQLBUzN3N6m0aP71PUi/VH
-yaqSZFsVVEDfBloz2/JhOOQO/7/Wt8LiI0kd7k8amrPbeXfhznh+rHoi1ZlKFPWCpTX54Q3uYLav
-NIIAtptVWlwWBsKMfVpT2lHrRtks9a3rG3/Ik8Mx1Z1lV2p8a3jkbjqDb3JCM3OUwpFwN5AjSuOm
-M31tv2E0WxpTJfd0w3Q202B7Gxcs0BG1XOfO0ecwewLXMcPkfAd537GbbpNhaQrXO/ct09qBJPJO
-enoVjJlmvG+YLmtMVzAfZD3+e1lkGW7A3hGnpR0Q14E9sdoFLdVds7fTYwcsrkQoj+U6OrTS4Lrj
-sw55uOydl/gNO/LG2zqxQqk3JTD4KGo0y4CpfhZGBFvYztFSZ7V4oGBE4hvXtVOf1cByKlzChHSM
-l0Jv+jNdymw3it7dywhRib32E7e+Yg5V6VFmO1SZcQwkK0Z5bd26qbMfNbm+owR2I7UsOAM6gHJN
-77I9ZCTEp4WDc9bDl8GDKUx42YYsDv2QWkrVq34dOiwIUysn3C3zh4vJHxHCpf5wYDtu9qHWTbnS
-S9GeAyAoadcwXrMkphKqPH/CMUKnw2/c7pAWKhBpFdz0s45QRNJFdAqHiYhMIz2OQrNihStR9/k+
-nc+EbSNqpCoQK1bSA1JDNhGNHH1mKEmGEmTkXTpp+VqIeNiVsq9PLLxIq8nJp9uyquRO94J+30Kl
-tXHtVmOFhG00QlXy87yxCymMD4oXpOg/lv2E38Ku9+wC224mQSwuCmMMrhF7cTsHxqzKF96JhQXB
-AOedVXspRcIDEUbNjgGhgcnuw3TrJi8qthJn7HigPNO7SiFroh+UVPC7Ps+KbVNr4U2czPZ2Ij9b
-NhGzkN8oYO+SMg39ic5Odzc1E+EYhufgfPHBI81PojnsM5YYOwrv5rknKVDnuotQ1DEKsJdp4F1q
-rgAxVHmDOsxd3D4rp/HcPYhaAN1zYCo/1Y1j3lVFO4P+u6HdFtJQ60F47n4q6ZItvbgzh03l6hLE
-gCzEXeuFsl0yOo9q0zDaGjAJ3OGK2mpyrZy+Y5DLuEHVyHy2KDt45rpSw1FXWnIf34b2oVMUBVr6
-ZucmjQ6WhZiVIpLTYv+4a/zyGCdtsJY077YiAaC2jqRfk/6DDY9kXCDOVyMe6M+BGrMLKvDxPsYt
-/8LT6ZwuaF0YP4WoyhI+T1irsQKGuKRYSMM6IHtmk3lle6jJyF0P9GIrvJmcwcLGmHpap23jspgc
-1ZWfWGR20lkIqGIE8RnsTRIcY92FOzhigDvs3cm9JP7Av8IhiE8atslK6k5x4rHf2+VlelGnln6Q
-h0iSIq+n8We5sAoKIgxpgqfloU+zge65NwTo7KymvOyBL6wiEiDJd6c+uQlbUsZp4/vjrkoFwquE
-YunJYPTDWawJV18Q+BVcqNBPLrFqd7cD43IGin+IBfpB8OpMHhoxIlOR5J8YSDiRidmENgyaj40K
-cDwi9FRZx2Y0GW5IEwfF7rQUDwbgoHuEo+zzthbhWvOUFyxDWw7VqmwLccsiu9qZJWjOghU8OydL
-RigLgqE5C2pfsG7RffkTDaLwqOscbTXQ/d3XPYi4xCvuidaiRZQWA2l3VmlueMh0KH8SSDfvVXU6
-UPraFlUTnOr4iaOlr+cmb6DV3kRw9PZYchug0igO0913+/IYzMuwsY2oumm1Bs9R7Lt3oQqJ0hkx
-MJ04ImXu7KpIP2bXVZE8ChwTallrRzlUUd0Zl4mZRwdDb3hbIiDTtSAwAJhHwaRZeAc0ISSNDLPJ
-z4NKlKTBmhY99oqNC+EK/ToJlXauTPqCohmIKqLLf0BRaVz0GUCsLLhk/DprNIw+GrA3C0vhvo0R
-fDXGo7uSkR3cZnX6YZTjKtQTcYQ7t1zhiqmOWrMyPveRL6HRY0tqG99ehKV13tfhnlZgK0NXst8x
-ontMPJoMzyYxbjINnj+ly37QjwIVnrBvpguaEFEH3Qf+3Z4f0eb2bfNjiH9qEvRakGzPBepN7PWf
-C985IFOCVgtv7BbcnrvMw3E8kjXyvcKkMBHXUKkBRVUymbaJJaI1Ua/jtKqQeFSBZ2NUdupjq1Hj
-GryduZeaTfSxcrPySi9I3O0xLR3Vtu/TtgnQO/tGZe4myNABrNdO/OzJsTjmqWWUMhGNd2EwfZD0
-lvdbLQegpIdOe4Y/Nr9w6bKsSwLOFslkJQtlTpdTpx84JC0t87xjG6YTiTalvXmAwfnTFLkZ/gNt
-QG3Qkt1QTAQYmnGcHA31xLo1d2iRZ6jJq4rNaGg4kl098uFmZm6TqN3tR13vrzzkF802xKF5rim9
-vaV+q46NsBi2Q9hXW4WLf5OgG1+yHTQOnNQfjwojqI+RH2AfNd3Ouag6uz1IQgdnlBicLw6JI1CO
-pQ6aHaqZrUCu0ZFLgfcW0cYzJ/tGI9Yc6bVKEc5Ii/6ciPer0GSdXQuP9W9ifzTMUK7Hrpv20jy0
-NyY+qxxlTpOd1VasH5uF1q51WRTrrPfc3TjazQfNH4xNSw7yl2wAV5SVo3cywF9Asp7Q6mR3dycG
-A9VGnfT1UVpgRG5A4e9brrIOeyIoqBdk2bBNyW79LPQ8Wo+JxXZ5HGfcLnoAeL9Y2KtYJJ9pQKUb
-+O/Baa5B4GdLkq71KMA0oHr/C0wL7ZSSp7FWeGHPAAAZp9DXyo3NKnWX+hqx5DZeNKx/yb4fmZ8V
-sOQtWgI0WEMf3sVB5YLhdMdzlGY8SIRhU1+NOuO6dLlzg1H4ewS4JNRPRHURjLZGvEvCCSkCRvR4
-LI7cgtZ5ODk0ZhjPDrVQg4Sem+24wjoEMt7Hv6mEV52kUit496ceZAJeYvgdQTypFQ3eYol3kvg7
-UpV1CnQjwYv6HA6SlAQ8sKIin1B2K3juZJKpbLqJabPuxSiXjvBjil08lNpBZIzhWtq5WNMQ6w/G
-Kej3KDPXBJCwes2AMO3gpk5XA2VahrEqP5/monNbjMO6FHF16aGW2Cg32LJFjw9gRczxOJ6xRZjR
-8uziXGH92aF61lruCDGbTuMsJSCWfacoKC7mqoF4OzgfxmoCgZeFASRMEwAtIUFzWhTJjx0zIays
-wcsXTWAEH4m4dC9sDQfdAnCm2ijHiU/g/YMiwJveAxrp5V6Ov7L6f6Vq821PyRSW86rR7fS6us6f
-O9084+v/epSruu+FtFxPGJZAdvoU04PXzdYdbFM0j9CxWvZTuap8b+l4nlzXFPS2hAE957GjJO33
-xPKiZHU9Q+cXHOfPdJQs40VDybQFpCB0sWhD8eJ57gu9KgK2UBelBk5aOWymLCIbxjW8Np5JWUnK
-3Jqt7Zn2oDB6kR8F66Fpka06jZtcm4ND55U3lpZ2WkZwNemgEoOE1b3ymbgFvRQ3m/lmBIQHe7YP
-i34Zu6rUF/ZYk2OXp/H4hR5RMyN1kdRXkszOpRbRt16iy0P8ORqZOLG0QD+gI9KSouGbM8cAulGz
-DnrSrPHl1oTJRZ5TnxmRlBUAB1xX7BnYxzHusN5kxSDMj56dIYEX0QxxzuxPk2iYwQiV9XexXdm3
-DZEvZ3OA9TXR62g0RhwunEQVcQ8gbcAdTSJ7ODP7ZqJIoQQL3sjV2lnT43BplbA6lokVe/uRwLtu
-VaEQR1VWdVa1VEZX10tbm6LrMSzoPiS+jzUmDBEHbluoGrTgs8m7xhpMo19mYT6zEwYWmq3VVayI
-Rzit+A7GXeCMLHndIO0J5POz+lOeZw3RS7Xn7KGYTS5wa9SXVJGiaoVYQaJRM9VhoRqAReh7TZBs
-Qe3cKPJeP6HnYYHrUXhkG1XwrVc2IhyQ5U5zALkuPwr6yPlpcvQJZUUm05M6ZUpZlkXeXzlmgfMt
-m1iSgPWIT/tSsf3xVHkedaMgZzHqICDpXpg1E4KUBHe1l6j+UiNy7pYjWohHjMj6kOYx+V6dP3Xu
-qm9TfdyUYYOSrmSzfoN9oryjsRBRIEf7CmJ9wh/mEO8eE9A6eCWUWwi+Y71kWG4vSaW2nIWqPKtf
-zYWBn2BJmPVeFHuw8ZBSfnZGQLe4OPzrCnZRBN4Gcd8mRXZ2biPdu6a/P3wO1cjWCZlKd4z0IzuO
-zTmnPHRLXwI4nnysLBBP4K75hMkuplz1rPx117lhWUzGkaLt46+SsUw1Hj7XPRQiS8go0KfphJ1N
-e0xOHlY4V9lXuvAoD9r0Cw8FScQHeFFZOEcpGqKphns94qLCV58VVFoko/6ZbiOWW7QaqNHFGDXW
-hW268BjMxOs28dTrAROjqjfmFHjnEVyYHUWjATdQ4W3Z1WWEn7rIcBmt8nopWL6Ciujx69MmSbpz
-jchwuCyuqK9q0Vf2Wk0D7T0N0zrHdNj/USqHkAWFU68IrAn6L27p1j7awBkfTPvWXKf60I+bCa6R
-taiQv0CbVZCrWb6qxN22VkaM4RB3k1yhw4HV7QftFcpUUolF0RsoOX3KKQuIA8jnXSNVIDsS0dxi
-sqtzUPIIUouWL5EMANyJG4vyFnv/dkq6LavzcGLXMRqHg6PyszgJiVSlB0qUNoRRBFZ4WK8NviI6
-lqjedJSmlEFzvUDAU/UI3pfY+cimNw1m2BWFQh6lKqbAC4imj61Vgm8Rl39eBvbS8+3ws6a8+opI
-FfajXZzftE1l2cCvIBWwBqRQgrBRA5dKR9tGIxXVzkVG/gMrYUNWBzFgJgKD3QyWl9601HtckpqX
-iO1phtaJYX2OIwUeHOquVs2y32bDbs4E8xBCT9vZTq9/iGIL9J+YmrGBSdnbP2VgSE5LU5Co1npu
-dQRAOY5WsEjTj4ibNYZyCOQ/gzrLWF+QKERB10C5pXBORuuy6ght6Aot/AKgpxIbnHRwLMdySCCq
-lVq9lAQxEHXpJJB1jWAE8DMEs5RJYJhaILc3z/3SxWNroZe7pYftXXQyRc/U1xWB6xlGMUYzCbGX
-oY5nQkhj0BHs9eYe1xpYLKkjBjxQkfGEmFlA/J1ka3wc9Lhl+29RzVoSPUCOiKMP8aeiJ6F9Ybaw
-vaiSgTlAMNrfiZyeh4qJbSdKSodaKtq+hHYv2CMGowW5IWAZPMGUE0QgoKKbmxkhzBY4riUMhaCa
-aZszUcvGNWjDeAjae7JYJtDOBWY43ASGRjvJVuUFYszQBm+vwwzvLJeMQuEwRi+g9OJm0tqm+Fg3
-Ifo/QoVm+X8C02ANVz09ZzjuzP1cT0W2DUaDZ5skiWNvYGG5CjzaVTFsDoN0FwfIt1n4UbmlPkIF
-uoNRehulpX3FypqkyLIFsLIIJGkvG+UNMtmnZat/8CxNmAfTRCDAjucDhinB04UkDknnwhRyzoaV
-Mb39vdqtaM3VUeJN7Fda80PAYpZ6Rw7WfQ+pYT/tkkan09Xw2K4oz5GSrgpebZh3eU3BunFm9Dn6
-LhiXeV9CpHCGck/0SUlNLK0TgiZNUJc7RcWwZ2GPrv2CaoV/7jM49QtDmFZ/AscNi2voqOzK7/Qx
-Xo2NwvieZmUQb0RU05+J/MbeYeqmqiJGj3KI1fgTpAy99h2SJ3T2HebUkgg5KiM+bwujJogXJHGM
-YQvMGeU2SDOrCb+Ku457h41NBDmVyIK6tKuVxPZbroMmGup1BSU038vNQbYbYeuTt6BrC92bnU/X
-LEZwZTqRdhbBepbR8Psh0O0vaL4LDda4ocK1QeXG5dE0xgvHoaq3Dwa5bbeRYI6qMqPyd1mSE7KK
-rEFcYgHUkbmWNO3Y5/VAyQLqCphEYL9RTqeaPTYivemrwb/0KcDRvQ08mkrj0AO0HXqH3EhvLA9U
-VBqfaQ3PIcHCMz/DHaaQXjW6ty1ZLOAPSOI821EP8s/xsxYdVRBZByto+4R66FOpE2uTlLx61ITT
-JYHmBAgAHmcAdNlqn9aAD1M4ZoZPzuGc5DvL3OUiKulhLA0kjx8E5bKbFHYvaQKpk9tLkMlutfSr
-QZ3CbqN9q/oEo4Qu6zDZKCOzL5jJWMw1tXROQ98iBbl0Ic4h6yV067hwhLoc4hTPhRvYAPhknZJi
-VZDPh9/FEOWwkpglUKcEZbO2M0K81inOjZM09LtPZt4G8N5VCMleG5xb30iQ0Nay4kFRpqVpNA+S
-BqIjMVKQTqaeHPMQA8YHRCqC4QCceoy+fVSfOxwOhEfEOdP9ODF703EWBICAnjGirRM5GC6MZAg/
-uj5ESfh/k80Ag2uIoGmSGnu2kDjUl5UsKehqHiU11olT5i6LzjdWsd0nF3YdNxR/25Seg5XrVb+K
-Bd4nipFsC9FkQepjqpYM92lbB1RTmSjsjZ6E2QedPHeDJx2c2v7QZKP+sNf7IYwCXdsTFgWoDaxX
-lqXPljZPIBB5QV8A+0S/1RzxQve1tdIRXG911X1VKf7wKPqMA/0NefF4GKRzbHhcyer9uawtbwin
-i2iGzzaOXeNRh+8C+iSKdO9ladfiuDTbbBOWDnigwR/QP+jeGcZa8/SJKvA7UAsAI6+ex3w7nsAm
-TLRhDUogqv7Ql1FEO9XWMebX0qGkyCCJ2sgg8yYD/mz1Ili/fvTv3Wzb0T0X96Lp0op7fnR7MpzR
-ypj3W8+L1g06OBritXqQhP7wZs9f2ct7/fQoL9CslYqAhjhttHIDOtlWaY9rEbTdRlG3Wb1+QXI+
-4xfHgpxho4t0DCSS1osrIvvFD1HWRSsKQDzc7cArz4hZJXI/UkZ51UJb0/cUGNUrijTDqm+gqDmp
-yvRt0uvmUUFCqbOQfkLhCJ7UTp+kdtdmunFVqIS1r8ZajAT02PEwZDAW/dmnnyW1YJBnMeI683b7
-+RcSdx2ujdgjqUciz7PciHZnhKvz9bv0zdc+HwWcr2053CfkU8+PQqOHHq2rxavClLxerpFtkBRa
-i9eP8s3XzlEkgBzJ6sUiUeDFox3QMBmRPcYrrSNbNQyFuYkoJu4GXwwHrx9qPuFn3zqHsngvDFc4
-gl3XXHN48haxehZCRFGyKusm+DLhPL3EL1BuSkhhQPOUth94dH5eP+j3rs9yDWOGxczHf3F9lM0s
-O4BXu8KGU+ICoEpby5ysGY1s5T9/KNuAxOHZ0jKR/T6/PovCMfUGHot+MpoTeCjZUnUuaasJkPHX
-D/Xts4GLmFF4Fh5T8zFfPBtiKqOxIAF6VfST2np1+nNl2PnvjDvffl88D7rJk84CfH5Gnl9PbZDJ
-Ys4cwsJ0xg8tezakL2Z46Gp5TZJeQZb8BDTnd76w713a06O+uDTfHpEthX60MvRu2uFXabaq7uTu
-9Rs4v6LPn0Ws2FCKqKMh6GYie35t1jDz9ag10LFqAaskLZsaB9NCZhbygJA3nzpO7xs7M2x81OO/
-SsxPHw7yY0ISk5rOoV2UCDCp2My/HD2GqS40bRiY1GwbxE4rk8OkYQv8F46Cvhzn+YzG0l9eYNyy
-zgKGtnJk120MxsWNPm8mXz/KtzM0F+MxEiI5x0JnzTb+p++0ckhrZNdKmJ5iJQtkVAUOayiMRMh5
-JbFrhsKuiU8Ij1JNEAUDNCJFGnlxQkMHh175O2c0P5Qvv1gu26B2yWSJd+L5CaG1NssSPcjKn0qT
-kIxyOsutKF3hR0X07LWd9ztP0nfeEimEp5uGJQX+jhdzGS0VU+ucPp5r9wAcG52ugqMpdyc8h/15
-XLiHKDDr7Hdezm/HNYchW9BClryfungxrjWahRWx7OJVQJVpY+XxRCcRTfuCeq20f+dhul9ovbir
-khEAsThDAvrpF4sDD5eS42HzWSmnBblEABRSy1q7KC3hrDokJgElN53oiFrJAQ7w5B3z5CvwNOxh
-tzD4/A21Kn97//T9nwTrfT3p2WKyZl3ajGftXTWe39Vt2jzAAIM7Nf/rKQC45lL9tV966mT59oO+
-MjMux+LuP/5xfcteACD1Nz0MyfvKaPDrkPXrSd2f8WufkV5zYe0tH65Jh2QAJp6Z4v/w8493KbvQ
-x3833fcWAwyPqMEkxQ/vIUd8cpe+Pf2Hm/X6Jf6R33ntEu7uv5sZqDfjB998G3TvPWFLNreBaXL+
-4cV4dhuM98ARbH7nf/k2fFEtAbM8j0BA82cglT94D158wJNHQQe+cv8zu5KeXrxlvGdk5MeZFyr8
-PBzq3+gZkJ4r+cbe+CoY7y0DpAsz4MNlvnwG7Pc00bBmMW7e/7AW+fd6FeRsbXvrbTDEe1YBrBS5
-vGdPgf5esvBm2c+eaf7593sKoIc+fCcPm+W/NiDK9/NujRFAfv2an98G03jPQomElYdX4k8NiH/g
-jfl1illCC7m9n1yiOxgB385BP/qFx3H323//Op7eD5q/MVTvf2+eah4O/TCwzn/+57OZ537If/KP
-j1PA0//+9fq+PfJ3z+nxL3fRXXVdfQnH+6sdv57lAzDqP79Ud09HObJrHv/43dnx1xHg1Q9NrwN1
-XT9+0Hw/2LHy5Px2ed9Mu3/sg7PrSeUvPtnU/4ZTXlyHz82tD0v0t57w5u6We5+++97ywtNnMcFb
-j7Cui1/+RaSHendxjY7s8QMf7rk547XeeoStin75r+dfprznB7/1g49mAUj4y38/O2ksu3/HSR9d
-c0cwW+DCfXfLvWnTxxsx3xlWW3Pi09sv4NeDPH7Yw6czjT/+xV9/i9DHPFfHSEu/50Dfr8ze9LnX
-v/zr5vrxDO9Pmc3R3/B+nt5V+XV20355/pWi0vkb7vZ5xFd5927/Or+LqucHeJiX3vp1zgfY8khy
-EB6ZY1U1z4bGefJn8/j3HuXlg/mwwHjrMeah4Prdkk0USRTPv+iHPc2bD8Bb++70GrLN4w25f4oe
-Volv/nAiFKLi2b1nUYT1/833/lJ94c6gxHj8qPmsDYOE+ce/+Ouv1Y+57W98X4/4Cut3W+aR6Pl5
-P+zL3nq3T3+IjHzjeZ//OITvzZ/8Ko3ijZ/+qi7xjZ+9vHs5qHuGPVdWf+/5+97K79cqwbfrwcfd
-//f+2/O17vwbX1JO65//AwAA//8=</cx:binary>
+                <cx:binary>7Hvbctw4tuWvOPw8VAEESAAdXf0AMlN3WZLvfmHIsgySIAGSIAmAf3NiPuX82OyUy9W2yu3qmph5
+mI5RhMNWMkFc9m3tteC/34e/3XcPd9Oz0HfG/e0+/Pq8nufhb7/84u7rh/7OHfXN/WSd/Twf3dv+
+F/v5c3P/8Mun6c43Rv2SIkx/ua/vpvkhPP/H3+Ft6sFe2Pu7ubHmZnmY4u2DW7rZ/eTZDx89u7eL
+mQ/DFbzp1+dyuttOL54/u/vUN6Zs3Dw19zP+9fnl8fNnD2Zu5vgqDg+/Pv/u+fNnvzx9+R8W8qyD
+tc7LJxibYHEkMM8pbAo9/uDnzzpr1NfnlBwJkuXwHfLlOfk6+dVdDy+4bMyde3b8MN017uuTHy3r
+cVF3nz5ND87Bjh7/fjr6u4182ecPjqTpnj9rnC2+HFZhD9uQt4/7/uV7Y/zj708+gJN48sk39np6
+bH/26N8118vrn53LXzRXSo4yQkQuOP+xufKjPOU850h8+eFfJ/9irpf//T/ts+u7pbNfP//3jfXt
+2CemOuzxP8FUxc9O5a+aih1lQnCILPjr8edJZPGjjGKeouzHkfXyzsx3z4q7+W6CGPvZwn4cW0/H
+PzUZ7PU/wGS3Zz87mb9qsvRIoENk4fTHJiNHWOSMiPRL8KEnyfC2sc8+PTw7uzMPzfS/EWFPxz8x
+2WGv/wkme/l/0GQEHSEislRAovu2bmX4KMW5IPDwi63Sr5N+SYSHoz6e7gyY65N99nKBovKva+qP
+A+wHr3hqMNjp/2MGO1TXbw/iu+X/ZXCBjsjjD4LT/8465OhLCLH8h9Y5QJ+fr+THJvk67rtVf0FS
+//dgw7+GFL8jrxKy+O4Rsn2DKn7+9CsceTL0O+N8525f7Xb66dfnKeMYAuJ3KHh4yW8j/+n+f8xU
+3wx9uHMzwEOKjkSO0pSJPCeIZ4I+f+YfvjyiR5wLkiLCSEYynOXPnxk7zTUMS9ERyyEsAabQnJIs
+y54/c3b58owckTzLCWckFRiqY/47ir62XVTW/H4wv/3+zCz9tW3M7H59DvMPX751WGyeIcEY4YBP
+GUIkZRnseri/uwWgDl/G/yMuw9qyMRsLoV22G+t1K3mVbwChfz+cH8wCy/1uloylOcMoxYTg9FC1
+v58ln5u0qju6FQmZyR5TXMseT01Zq7iVP5/q6YZgKpYCJBAMM85oyr6fquNpHtJVbUW1jPW5Fcbs
+O0s6+fNZDm/59tgOs9AUU7AQFDT4+X4WiqPumcOxmFUdX0whZWfT2rkCxbR/0Q59/5qnKQbU9xdP
+UbCcMkEB81Bwge8ntXEikxtoKGwyD7sVT5Nc6dzf4DnpTn8+VQpty9MNAvjCaY5gshQ/9Ythy6dN
+sCQWzKxGFI3u3Oss23Qvs7hwflGxlX3GenDvDO9JLXnm/GXs2eAla7RLpNra/rprY/Umm81spRWa
+ablN3Lpy7PP0Jroam93i2JBJMjUDlwPi4Uuj8qVP+YHjYQiiJ/sg0JrlmDNMBYE/358ZtUlrZsZC
+4T1aKrniLebvamLJ/HpSWt1ivjola5eNt1p7Sy9wT9rmOM/W0O5pm693kx62e+WE4uUYTXe5zVVo
+ynYg+fQnTnWIgu+dCsot+BQVPAffzZ7YN1l03yA8hKJVmz7LNUll4k3/3pEmS6UfVn4Wh7SSplnD
+7uf2/mOAEjA0olQcYpQTqDffpoFkHBMfsQ/FNPMP47b2r2e8oBfaLkvxl2dKUZrlOeWEo5w/2aRy
+WT83It0KE9pcyxqRqrSxnQe50fjw87n+mAsIZSlkuDylLMcIfb8rxVDo7bCBE4fY7eYpfEJ4VIAS
+fxaV+PCWJ2YTkKRTzPkB2eaHVXyTQpWOI2m3ZS2qpK5kWPks214R2anYnzXLZnesq7pdilp6KQjv
+HrI+4j/JeviPCQm6WuAZcsh+UDcOcO7bRcRt9cqO81rMfEi87DdUnWfJuOy3jel9X+Vt2Vcq3y3Y
+E9mkiTmjGtW99DSQD6TmeYEmZ09Gbvrz2qpklHM1ZRczNnz4Ezf/gVUOOTNjPOMQm/yQer45rz6r
+e2K7aimAQlpkiBTW1zNy8nOz/GgWhjBUXcIFzdnB47+ZRfk1NXVs1yLU7SwH2+IisxH9ybn/Mb1Q
+qN88wywlGSX4yV50JJrNgvii8YO57KjDZZNMo/SuG8t+CdX+57sij5H4vbdRCkmZ5RnGB2TxJH5Q
+EEzTMKFCj4PqCyK0HiXNR/eGRGObXYtdmsvUdhMrSJjHV/XSjaukGYH0pxfB35K6DsuuXfL6Y+7a
+WpR+GdH7LTGoknELwRcat8sbyATJ7RzE9DZdhhYGjG450WKhD3FZu1z22oh+X/Vb56SIWEwFo/nk
+JRQwZ8tKoO5aL6HJ5Gjc8D6xkddFXFf3CspjqAs0WPR2XDuvZcfX5mWCOn5rbM7HgtXzctpXntZy
+sVW8ZZ3gQzmNS/4qODTORdPVcZF11yap7JeZHvebokS6dZ2H47X3XheIV2KRDpv1fWqQ6GUbO3OO
+2gGqTaNZFstxTMG16wC9UUEyPrybZufemKZ3TUHbxcTS5TNtj7032yWJ3mk5EPja6FkfJU96T2Va
+BXW+ZG2XyLbe3PJWxIjGXc6S9n1u7IqLYczCG9GpLC1Nw+ltFxn+TAdSqVL0C3LlNIvtjeom3xfr
+1mWqjLmJ05kyFL3ESYOH3ZbUY1UMgCdSmS5+xdL4cVUSNT2/0atfNzhBtXyaNNlWGUSPWblsK74y
+dTspKephfj+yYZil5skynU/5mrj9RJbaXigVJwqpeEbtqcVDbpeC0r5rXttqRImsc0LaYpnNOMJg
+Io6TTUUkDcm2VrYVJrZAxOCz2Wxok3Fg4XQ2nc8lwlO8FNQjuq9mVqmiGbOIdllrEd2tE4n3NWMR
+FUk3RF+0/arb0mkfrVxDjXHhbW1uILzZdIWjWNpeEp0EUq55jPMd1To3121nOY2yocuUFVlHR38q
+zBjycz2PVXqRT2O4qJY18cXgoaLKfN22UVZ9rbpdkyVuLWPDuChYbnhbVFtjpsJtVfs6Q5ur5dZY
+Jspmma2DsGi7Voo2qz9C+cKkDGilKThcZYZ95cSw7Hy15G91lUOsreMw3U1rNX2cdeajnMYaQtLX
+nr1ZnNjwxTLF+qML2VCuru1e5sjgl3YbBwDEiNNPgJRtI6tptmiX4ppfcb8JONNu3SykM7VNUmEe
+mCTbgi6wECl8LBS6QvNgBsmcQnyfIDPAv6sJfBOHLRelohAYUoux26SJmbgeTEvm3bbVJD+GfoDv
+tnkC3Mx5c+Voa9/xbYif0r7twXOmGO/6kbZYcq2TpFjNJDq5cW7fdF2D347pqFVJctb0u7XJulCo
+tO/bMoRsOgvIN+jKREfO7IrWeEj6o5F11GNbLqrWN7QVUe8BlrU3zqZjZoo6jOPFwWJ2HxuFkquY
+dbo548z3TZEIMpud8jECHiV6zsAZRf9isPnGC8h0g5LGIAYO3KGgZJuh6i6JhLzuEakXOTCez0U6
+4hoBcJ2pKEBBsC8CxMQqARouOztYOAUFeK8rRMMGXdicJpl026iPKagX96GtRy9FoHqTC4T+9WR6
+byUTFXsx6rTZCtWxHp1wQ5kvFlWJcD02U/Mmb3k97wPLtvqsX9VwAt0bn2QfPF7Ktp7Ci5ZwSG/5
+PJNtH6DhC0UXAnvJp7Ydz2c16VzOKV2IbKd0rEqwEnU7sS35OR0XaA+wQeurfmEuFp57gLesH+tu
+TzvmdnHUJi99MvXXzisFTt0P7bTrG1+9gRTtQuHC0F0usxvuUjKDjsBturyMNA5IDjR2b/Aywikt
+Yu6VpDjrP9aw73u0TLY6JrWz9yNH2VgO0IPt2zpmlUQ87z7QGPphV9faz0Wn16mW0WgonGIhW3cp
+pi1TEoNmM+2dMxWTLfPqamGLWXZ4aNltQlp83+ClGvZ5XfVCxmlKBlgHYrUcR2yVVDrh1yq1CT/2
+ohevxnUSfYG2NWtLCsCTy4xmcytzoC8fkp5MnYTX51eWYfw+VsFDIeOzFn+CeP+IRHgKKEFgkkI5
+x/Tw/Bskkkbkui2dXZFvjTprbbKdVmEOfzLLH5sHnmYpPQARzDLo5b+fxUKSrFMwYMESUMMQcuK0
+S9P2BEiJZMf7zCs5BLeeVonbvkz9Gy/zW5f1hVS4t0OcGlX/ps79/us/Lr9Kfo8K0T8/P+h7//zt
+xfowzcv08OzybnDP9ov59Kj6PR1zmPn3QTDxbys5sDDf/fIHSuhfkD5fBMV/8fDfY4QEyYEeAbD1
+e2vwB06oAE30v//rWxrp90G/sUGEHQE1AfpSmgtEU5Ch/skG4SPgE4DNI2BCkUP39w0bdAQIM2fQ
+jjNI5gwB9v9KBrEjfuBWgBYgAHJB2kr/ChkErBN4yTfokgoseJZBFyM4UIskf9Ix0bCsIKO2FrIP
+FM6SLV0/Qnob3ae42qyRLerrY47V3BSqScNHG0P4SNNc361s0pOcsG9XmVmTvSNLs9zFdnGQoawb
+t4KvLH5SaF18SUO+duXYxPymTbYIoYtZpWUuLP08A9C5ibXQ3XmoqhZJ66NKSz3y6nVF7Oal1cnq
+JGC26VrzfAAkuKUkBZiyYls00SMr68amV7hquvdVk15Oec71CaJLpeTiD0jO56bictri+noFtJbt
+MI36emv9Gkq0VuRsay21Zdt0hsIrCWGlaY09m7DrYmEH33wIvu1HqHh9d5mg3A27tNsAEzSimsZi
+WdF8Pi+hI3LLZtUASkkXI/Pg0rWYQjXfopold+k4IgWkROunEo5uuFucc9dDGJZEsjUbu+PQbkqX
+flLqkmycRDk4MQsJMGM5x6Tqsj3S/fzKKz7Xx77yGsveGHq6Nk1cdg6jdpOO6SE/6/OIBtngpv28
+cYwBFWUZ4M9cb+hs6zQXx8pV7asZ8NpVvSZxlEPD+7u+Cp0pIjTOY1mxyr/3qgGUD71dpU+avG/f
+pdF3XJKZjdVeZZRVRY2r+n5cB70UOKm1uTEM2XnckYXV6zF1dMz3wBfV5K7thu7dUqXQPWAaOlXi
+ZlSdbAXpOiWhABFS5Azp98uypVdeZQw4r5Q2poAFJfZOM+hvz4GLqbKLKvNLvgKc832Agr5N+mR0
+uPKjRDa6074RySYRtdoVhvqh3fMcz26PB2ztsU0WlB1z1ri3es4ruwMWE+3y0CxqR/HAaNlhASQF
+MT2gzZT3gNBUGFZdkjE3Q9GNbRevWz4wL2mDIb2P1MxcAg2Yvid6iKZUWAxROm8ScrXydfJFYlTL
+pdMJJGc1jIOWq+iNKjirVr9zaZ2eDLMP9Ay33dxd51Xf+VcQXPZNtmIEvgBNk71a1dyRYgPIUrCl
+XoqReXSTuCSvSpFW+LiqqtjJes2WeIyBNcTQ5LCt2w+1jjWQbmumAUks/mZMKfnQsxU1pRhVKwpd
+8dC9AyKQ62PN1yXKKCbhZNaiRO9YuvEPE21HAFutGtpji5SqZZ109SWzqxneVS1eLpXqUlR0tI83
+EXECmEwksMo+WfrzOXSLA2ouxQDwjavhMJLYvtTMTq/GPBXnjQ3pe5USNsgKekdUEAo+dIKBrX6j
+eotHSdyI3+PGJuneiDFeQOKqR4ACEE470VTdPfhfF8umW8mHNiHx3ZTCfLuwMvM6sVm9ySzx7Wky
+sxiO3dBsrujN1r+2qdbtzq6iuyS2ybNdg/LkYoq+cjtF1uXN2ifGSR3GYdsB6Mig+8e5PWm5z/Xp
+DLwWuhE+3TCkz2xadslUQyOhRzY1knKwhoQ+uXqrgqJ0Z0c1a4lyaHolRX783AzDRCDKswNvE6sO
+g7/rpd3jBEMP0CTr+NYHPgoJTNB6yCsNufB2irzcsAfWFti8zMkQsNYlTdLkBVBxNi8AnpFX3OSJ
+kCDi+tPYdLSFGQdyN6ppXcust+t63mdOdYXuKXrj2nYaijxVCJW9X4YXQz9QoI0mTO1JZZS+OUgL
+awHRNm2X2nn/fo2al6rK3k+YKFy0oe+1TGrAFMeDMb7UfYXBk/ho/V5PiTKSdENjoOHZ8q5YiE8D
+JN7U65Oknn0jCZ2DP0kYIi/oQm0rAwTCTaNGICVGmroX/RSnu9rqEKAoWOWKbeXJy8AseJWB9uCM
+IXHREsC/lzpdw0ms5zY5ZzH1tphiWF5WAgrfhbVOfDadhjxNSNO8aqPTpkzqpHXSaNeZMwVupfYq
+jHm3y9aqCXLqBRPHUA8MNIydx7MUrFludW0TvV9phzXkGrPYEtJUE8rQO+aKOna0Aog2J8DfZHgj
+Mllcd6vduuEiWSq8yqpx6n4zNQJ2ZBksvFyjuAvQGaWnsRrr+2FOYl/6FMVNbsuSTgX0wqmWy9DP
+UGo15I1im7fZfyHv/j/W+w0GPkp4gh/0kH+N9L69yfNF7P1m2Ffljx7hHBOQ0CE7Abn+DdbL4BoE
+YoDkgJhMQZhAAAO/Kn9wn4xx6BMEAt0QBhNgHL+CvTQ7IhgEAg4CwW+K4VdM+x1Ih/t0v/3+rfIH
+ZfIJ2MuRyHiGGCcgk3Fw1O9bhpUSnS+NqEsDYg0vppz2YedDmj9o0Hhez57oD7SqnC+AtzHX2G26
+k4pgaBIZb/09b8NCz8WqoKJWiVaXhrn6gx5aR6BIi+qSK7i+czylg7NjUdN1fJlmbOEyVNG/awA3
+3NB68+tNS3AnzhbKWXetaJOii3EQ7QKZQlcHMIDIhyzP9AvA1HSAgr3q4c2YdrVmhRigbf7ouw6d
+Iz8v50kPZKXcjMrftmIJV2ufkT1KIOOUsNfKyjSJ8wIhQ4A64MEuH5oprVExp2J9j1oEyKKbupFL
+5cdwvaY+z6Wa5vaTxVU3nQmg64YrP8cxlAQy6IfWjN5IHdVEL3oxAtG4qbDOcuEsvsvX4GfZiRr6
+WTtX6yDR5rNRbh5rU6jacVO2c08e1DDFC27bAM07a6vskAuTUKxAWM87s1kBSc+1CZdpqMMAbHai
+hyJRlTtwD+ly0WiFLn3fQVs8jAEnsoLiCSgYmRihcmzjvQHm9uXs2ubzvCz+bG7y9q2mBPkCWL85
+KZRG9CoQNl1ykrsbl6kA7GuWpoBix8aVW9VsVFaP7fH22CoPh665Stv8SplDK80wdNX5Y4PtmyYH
+6MMmqF5xaKse6Cnoxz2JClDmPIrr6DrgaHrX8RrUCAGNfNMjI2QTtmTYbzzie3To+sFR7LIjNVNX
+0yMtMOi4TXv+SBcA/MLdJXg50Aj9I6UA1RDoBQVM+LDjzdB/0I8ExNyZbT890hKbEuYeP5IVArL0
+fXZgMNZHMmNI0nmV44HjaMbKIikOzEeK8WSL9cCH6BmYiuGRJOnzpnpTPVIn3ASgUcKBUQFyCMiV
+7MCz8EfKJTzSLxa4JFuMTQsbRH2gSKaIis+M+3DXiJw4mbQIAc5qVsj2a+2Khs5Zv2+JB/RARrB+
+dMBsgRqIh/4kSzYOlQ5ov0qqUWcgN1VuHguq0PTKpQs65yMQk4VijamA6wooldUMrFgB9HdH5ZLw
+zoI+S0Hrt7mipuBJ4DdRqLQrVFIlFz7HtZJTrfWrZknaRdopSfqdUpnjkoHahUqttnDrYSWvEmDU
+PodAB9C+Fp1d6JT4pjRTEzQ4vQfAHkeb3684aCBqlGcf+GTcIltDwiQhDw4vFbPtG5wYvco5oBlL
+MaGmKttlM28Naly973E3tyUC163LamwZhayQOLGrQowXahYGcBO0hq/XhAJX3ISuGcoRbXg9bnLt
+oUTCDQhdVH3LAGmjdoYI4XQLJdzE6EQxxHw7g6NFpaVeXSIQqV8smOpbQM88u6J2yUJpXUVu55zV
+XbnlKUQ0rrPBApYj7d74xr9ZNXS8kFNqaLnSpAJYN+PMfWBcc3bG4pLdKAilT7nvnCrrtgEinWXC
+wGiAyFimRuHPg13tXC50TnaGJrkr6BYzIAfHebxeAYVaOeMUdBFgnIbTZLI+k0gH7fZq7cIrYPTa
+vuC8Yu9Q4xE7d4MAen0iSrw3W26pBEo563YOeRCNAKytrxQkwg1I4RogoapiNUlac0AkqO3gK0qP
+3a3XDtWgaKls3Sec1Dcj9KFnvhrzfgdqSTC7gW4+Lbs+7y8qKzZ3WnWMYunbuQsSDUpctYkZYxF7
+jF8Bvb9OEuCUrncWz+Sl11oNYPLIPtWbAJ49tW28VSLvH0I+QBrD9ZQcz3O17Xgd5jPtkywvbG1T
+IGsd78QuZL3b0WawQRqVQWfmE2AZdtHk9KOHXpYVfZoAOwG6uYUeCwRUJtWCLLR22pkzkrAmfYGa
+Dvza1EsDEgkxgMTJNAFmVmuvWMnCJoBWEymsD3g8agu8zeo0t4eLCz6p1QNhi8rPlWttV1adw1rO
+TtXpTtm+mi9ACh3rnaYMv+8yvYXdGiIbinqYUnI8Ao7epLU0+bCFBhnpkfBbQRkoSxDi0b9s+nyt
+j4036NXYoIaXADmiOOlYh2zh11rNO9YM3bjzuO460CsWoGFMW5ux4Bltzl3WbkHaRBi1Uw5kwIKS
+Kn2PuE3Gk4xOdb4jZqTqFIG4RQqfV/4VVwacB4jTyUphQk7lStZUgRC0wvmzhoJQppY+fNz0BvhT
+8QXcBPULfU0jfH6s7BI+Kmfy/sQ1WdhO0DJDsqK8BS+zaq2GV7QCLL4jkBkXSVZo/DlRS17mYRQf
+PNPB7hcqtC95yip0bEk/wxWO1okLYiZFiwyKod6Bbjm4fQBKKxRbtQFjRLNmHAqoC7E5sV7XkK5Q
+BPgN2GUYCu5giTwz6pNahLd7TyP4g00iLJ9vOjbHOo1Qs9ziIgarTBAO2k+wdJsO8O+Kiy2XgZPM
+HPeiXlWBuyzEC7jfgrpyXRL3MlkB2m/zAsffzquPe5sSrQqn19Ac02TwDzpj5ko0/bjtiDPhNoVM
+SYtxbqv0WNSEu5OtNXQs4LoXGU/86Fv+Qm1mzXc+8sOr5mHZ9tDAw8nXY8eTExACpwMtAldVzhpQ
+BupT6ARtc1r5CuWgdnIoIEuXgMg7+gllxQqahztdoAGjBemgQOVe+X5XLRh/rgYfxiLvh5Ds2201
+6qRtGpyVmUriunNRIbsbTW7fujpgC/5vkgvkCEoKRzZg2IG7jxZkxQYYII239a2dpqo6hSYXfCnC
+3S0lxxXuoewhAYDyT8cmfOQdGsdj1TqkTn01RAWAxtD6ChE/hXOF9UrPUHJwYxDp+HbjhGs6EC1J
+Or3LbD4Vq0/GV77OEYg1zi/VsQbl/5Tox0VYCKVT26EGAkXAnTrwjmZIQX8LjJRxs5s4GUaU0nPS
+JPi1ESHVZ+CBebIfliUKmQ4VT3dNoPkHhrP2kwZRFPov3+vxuF0YMEsG/lsB2aukI+95COtUkq7t
+r0C0NIfqhfpjMyewBZOY7hYuXlViN1Uz7AZuBKJeVss8vK14k85yY+CLgL34lOwszEALitImL12F
+xpfQywMhsvnwse3RwaVphPw9wVUaVW4og40lIwUnnUAJ3U7auhsmcH4MjmwCAgdXYYPvJyEDT2IW
+gcNuix9f6o33U2HaHC5+bAbT13Cu/sHrjmw7WntzZn3PZlBOQvuucxvghyYb0VJ4uCkwS9Nz8rZt
+UAvCVN5BKqtcw7FsGqsymURPTzncwMGF6rctlTMo7qC3rgwA5eqm+ZZBAwVJdKkEIFRiP4mRq7hL
+5pnecjSNTGqzAEJMVQyfLdORlVVG+7GoxJi4IjLVPZA06TdQPusJ7dvRQ388rXMPnO08NrtuwWvZ
+datvdkAu9ge+2LnPhKWJlSbpurciD21TroJPlyMNbbZbtny7Vq3P32zbHGc5wo0+oL2Yx6/HGqXj
+CVgcuN5o6LyPPkumXZJMS1OCBJ+9r3jcqoKNGLSneYEilcPZLjsgBYFssiyZziHbD31R1U69Shr2
+v7g7r+bIjWVb/yLsgDcv9wFAW7LJoZkZDl8QGiN47/HrzwdK+4iN7t0d1Dm6EfdKIQ2HbQplMitr
+5cpVevMwlGRoVsrYZrnTkJ5S1k1TabrddVH2XTGF5Nbwu/qV9Rx8m+pO0JxIsETf8a0+1Nwy4rzG
+UAqqYRtZGAwueWBAsLJvTc1JpYInmSQig9Iz50BD05ppBnDV39IhzlMb0/R+dhOe1ukNarRGM1du
+/RJszJETM+k2xE4lQLbux9G6CUjhb3vBnw5VF7TZuovF5qehJLm16v1YVUHkZKgDYgSO73RRL2l4
+Zb99FUJZfeS4NspuapRTQKyVx+Ymzuc1Iciplq2UoSXHOrTKMK7rSi/VVRup0Y1RmrUHx6Xrf0SD
+JB3qBFBm3RiTwomkAhuHG8d+aVdiX+mr2BTr1yqdnaHaq+1j1Qe5uXl33D9zdpYWOT0YOCRvqPqC
+WwSFVrIW7CKhC2ItCKMAXKcUseEsH8nwd2Z8UJI4eg1ImXwNajX5qWieoriiKqmpE4itkjlllAoE
+Yk1qyIw8PsINq0r9fvkBzzyfIYMUQPAFpxaNBT9VIb9eabnlu70X+IdmEBo3s9TxSs5RmpOK79NF
+DAMs5DnxKM0kWHWmR71LbcLLSDzB7ALXGkYzvanCODJcReuK2hbLOBZBpfO0n0/b3fepGbTPwLlB
+QvBXZs+51vS/kVoHbrvc9wUna54b/IUC6ZrwWTSXVDgh4Ryce37o6tWP1GujyS2qYtw2auiHzpR+
+dKQlEHxwByqVdAZiCaLgZgxV8MgSaWXjb8XKG9lI4etc7tMiuwuBlRSyTF6OKQWtmRGjo4FOQr1L
+cwzKD0e/c0bM7T4qB2sl6IPAhgwGkWZFtlbkyf90uWlp/u6jSaZtk9QkCUsZgqhKEvR92xacHS+O
+UoU82JC9pKWnTNj4kNmYZQUpyg9j2VY40ZuO0oXd6BSFn0mrvtaFgPWnCsYmg+bjPxU93Bd4QNOP
+oon1n4LieZxaPY0DjtRP3tdabyPZvfz0syEuHx4TFVWQLkmHVnv88MGkJrInFLIzxiqn634y2RQ4
+52rtVH28KW0mGc9pfpU6p4UxFIkYVDGUfRx7F6y8MpvcQWk0F8ZNdWU5nJkSTSftq8yp37n+7bhX
+UayX0tD29KoW85sAFtJG8KbUkQXDf2y6lGxJ30bwqgbSAorWX1kSJxYGiV+f+Zu6qrMkjQXrURYs
+q2myQCZe9U04YY2Md67Y00VBAUDJxYfLk3jizea6AYgNFA+osB/fyK/v3EzhD7EXearHdhSr2zjJ
+ulUZBs2VQT3t1XEri6USW4ollLEC1U4QDY4zeg7vhuhWCqyHrlO0K25KPnGe9EqZ6akk2kF5pMUe
+omViSoZV991mVMI7KFPaQzHmRLxGJsjgZ3EhkWGXdC/2tkEsSRvcrZWSCAcyBKyd6q/slxwUOJQk
+4TYdsjBx27qV8+2o5kZkS00hN6RVLQ1TrRrpeRim+lkMde81tEAtrvTn3CSRrSBvBL/BpBz6eE0G
+hQCgwznbUcxc/xbE4UuZ1/HjR1eCqpjsaHPJJyUwy5WQ5GMSULyrOmOiJN8sMQdAHbLi5q2VDyU5
+7otf2VNT/frVwFVZElTe81P+z/+7pBZQf5lp/M+JjuMSvTuqk36957f8+fl/s1uUf5kkPOaqG4oY
+5rzCf7NbFGp1gfopCv3zFTzGvzMefErTiKNMvCa8Jcngif6d8dD/ZRFUmBa5EMpeDDg4H6G3LL0m
+1VamMSc6cM4zj2axQikT5rRR669tUzlA6A86ViManEFlQnuOTMUYciy9ZhcLZr761irjTMZHVQxL
+W2zdQquVQjror0O7twLzNu1Wcu45CdD4NL28m5wzYSnVOYvtbo4Q9Dmrw0Azauoi7pM7UQPIl+Em
+5PkoOKUYh+LKyKRIWHWWV9yUfaptKN9Ny5XYBo3h1LU2heSFB/hzMDgD696qCrV19KYOH5pYFj73
+Ue1DLwD8zeyoHryvhZDH5CkzLVAhqShJD2WwiRNHF8YawmdlhsZGTls4jQZxSrPS2H5b8hSj9xUq
+cO87cRVaOxgNMBglIIdvOUnndmdmov6i5LIcOHkGZXZrklX/Pc99n3N2VfXmlyEoldKRYW8C8cDU
+eNAVv8rcTA1hI3tqJj2z9UhAiVM5CLYmcdbl6BwQhXSxlUxOak4g8KXUhoJbJbr6LfNmhEcqNXE1
+hATippqauitwWL8T5IyDt2x2Y2dbsa+QPiLfq5HwlcZipQrwUIl8ytK/gdNuSLaocFJxWgEsad9z
+CoRqPoBymLWpFA4pMvku1CTWVx4pd2JbDPYkpdOjWvgvtQ+/m6NrVCUOhyClhlMUp1RDCYJOmryK
+e1gRwCeqHXhNJpIEqBUQRs7xui2AMA8rSfL8yk3NcRzXhThU9QbsOhQdqWXXcnJJaptHzvfCRuyE
+XLhXg8T4OYR97G8ykWQYND3YausqMhP/Bn5F7+2U0gBLVSczf8lbM/pV1jrJdU+LCn0lt5A3mf7U
+yldVl8G+rM20O1gWOKGbtIK1awotrDgShEG/lpUqi+8bICsqfrQayKD2svkIHmQAdVIJz2qTylNR
+ugas32gvJED0cJLVEL7QMARh9lB2fQSRSOqCH31m6R6Qmlh4aypxYhOGOgyk2h+teJtX7czInTlK
+ZafyjYAmpNmssUl/a3xSdvbQRMZd7o/RMwFpb21CuAZ7qzAnxrwzyYUFMzsqBd4qQNiBj/d164Pm
+G0Qg7ao1PGWnlmYk2exQdbChGq55DnI11tbGzMeCuwM1i1GDpuWPsnDb6LIQuZ0Ko3bT+BNZh7YI
+6k/lzPSK5iOqKyf65NvTzAXrlLF5HFrf/5IPY/DD0tL2tlF9L7QFFlroTqSgcpKGmfG91VpYzbLu
+Z7odZHTQlZI+aFgsspavMg9oz50sa1IcaQQqsiNYfKzCppG1zVCn8OOkuuofpiZuHhPoXIEdJ01R
+kV2Mv5SdFnwVtEb4YYBDNa5Z9sOPLhyMH3WRyp+S2KC+qcjUVrY7MYKwb5TzPFRJP+4jMIP5Wbos
+s/3GB5SogtHSVn5VDY2tBYaq7AhhutyOBDJckKW74SWXLONTG8VRs54ESYYkDR/ONsO21tae4hPU
+yHrb/GqruvtEmkGS143QWr8MK29LV9DU+EmbGhJiXR7Hn6sYF2/3uSh8G6I0LtZK0rX6yioshicI
+pTSxkySoP4dy1keYRiTqzpBgr44yFpmxysmDAI1qyvh7qIXey4QQzEFrNDoE08yH+OJryidYV/3X
+DGLL1ykBkgRU80oIX9CsE0eVR5MDf5tKwaYpBuO7rmaUhdWB2t+Unppy3M+NwlvVlBlWwJchTCCK
+S96IU6Yq3AymClcyNIw/Q6cPBTX/n7B0f7wX+nkfkMys5/8czfy7uv0vysb8/j+jF9n8l0lVFedr
+HIeovedrGGj4IN8jU+1rSPBwZyrHn9GL9i9OYBz6TaqxLXGOfv4KXhTlX4YmSTP88gfd1/hI8HJ8
+kNV0ieCFoEWioFGRYIAszlwKPKlI9qvRLrU3uh+STNWmbTM13/uThvG8G5kzocRpcyqRNmwTyCiq
+JC3LqAvB8Nq4UQdbiutR+4mNSFNiZ14oqE++Cl3/x+X2jk8Pc/cI/tS34AzgEbbz8ekB3kVcjUk5
+2CWFK48kBXQSXXq0udKKuGgHrrQsGm+lekwzZcGLaIxfQaELpIeb3f36fuuu17a9vjms1667Pjj8
+/eDyf9d17C0/uYeb9c7e8Z7Dgb/uXZfXtu6e11Z7fuTd693u3t3y6oEP73ir4+z4tvXG5iv5+vkt
+65zP757X97sd32bzdfZqfnm9WzuvvIVHsJ35N/zMX1a27WydLe3yXr7x0+aer79xXb7qld/sVvZq
+xTe+uAd7t3u2dyuHz6xWK2flOM78thWf5/vmL3Nu+eFAT3iix7n5zdbZf1nt57eu9jt75dw5Lj/T
+6+0mp/MOT7debW8dZ707rOcH5dk2fPLR+Y1v3fLW/d3Tdvs0DxMDNX/aPRxSe272yeHXl6dsPpC8
+Q3C05YxZi6g9japaFSPp4bC+f92tn+nUyvnN2e6dpystLWrFT1tamFhTV4ncsDbW7sPL93vfvrdX
+3+4c0b7SjnIcpJ+2gxN6D6jVZV0ExtwOU/Sye3xknh3GmynZ3hzcG8f54zj7n4vg5wf/CwQ7bXCB
+4HlSU0YTDR7c12dWC/N0eY7wc1damCfxHUJTE5R7XUgLDzfrm3lBrw9v//Ln/esa27hnrR5eD+vX
+w31pYziH11fm0r7dsLB2j5vdZrNZbTa39h0rbO/cbFnO325v35bjre3cbZlvLA+zcJ2HG8fGPlf7
+B+fmhtW3326vdOdabxbIjCp2nRcxXu6L+4zdMGLXVvUs4HFxSuZHeDdgE56cAxR+aP16768wS8z9
+fjZ4hu2Rf3b2hp9mq/Zterj/fVs4vf27u91uf+/th6drS0SbHeylNbJwwGkDIpTOi/J+93y/dn7f
+7kJ7vVnPg35Y4+Pcp8PsJpkYJmJl4wOd+a/u/frZfd49HtyXHN+2sV9uvq/5Arpyv7E3z586hs/F
+izzuNqy71Z51Xtiru98ie//EVLuubLsPLIhXy/68usOTrF17664e8EP7w+xgLs/tm4jCpX4uUb6c
+jKzESsVhH+wXfG5n89zfNmv78Q/PTPdwojeOe7PmIVb43ctPoCwA9VNzXOxBkzH2Yz8P9Qvu/cAo
+HGa/dnhy713nZrfDW29fsRacNR6fXWKzWpW41/WaMWfr2c67gPvC5Kxf3d39PQ6bdXP/6Nv2V1bR
+mjlhl1jtscIXvPbefvNlu83ufvf4a+fbvx7nL/3+fP8a2s+T/d23dzg7/ND9I3/99YvViM/fOndP
++Fj+fNg+rZ62vzu4/O2T/cwuMti2b28w1a+3d3df7/bb1efdfvvz6YGdwnlgO3BWqyfX/u2WjWj7
+cOM+YaL2ar+/xWfvtwy9y6i+DTM9/53hZnOlRfaW7YF9+XDjbFd3mPrbG7888evZKTy5Nw8vLyxE
+5+eVGbls7/ISGDJ9LxcMthh2yRv+Y+1uDi5bHqZvO+7+j03OubIOKN26aHLoYh77gLgzjA5dAgZo
+XuiHe+wfU5tbnXfv0saK7O/zXo+7xC52Nm/EO6wf512ZiWbi+emRD+zsOwKCNT/Nn93tNnf8uX1i
+0Ny98/AW2DCs63nXxKLusNzdW7iw3e8xyHmpr+c1eL+e3Wlgb1lCDD/eeu3ij2/maXS3LwciHXd7
+7/KZyxMw7w5/2SQ47sxoJoWok9MwqG+bX3/nDKnypXq5pZrClAWqspuCKh5Y/6vLrRzP8p+tKIR/
+6A9ZJO0Wlp97NRwOhTy+l0UwB+dUc5UNySswUemGsSXcXW7vtFeaSPAvvolcwF1e7LqJNJGfHIDB
+2spS1yFsz3WQUL3/8VYUjeQrilW6rImLXkmtCdlHhFEVqYH8VQzLFPxluKaqdDp2QLOWBgwKUEsu
+beGyqpLkVmNYlT3EamA4gQVzmqJwTYMbao0UtkiQLp4v9+x4i5zni2yCpsmmSDWkhGjM8aqwID4V
+aTfCFSszGepPqUHXiaOD2ALSfbgpTn6ccywN2gcKoMdNyVA/87SFIZgnkLQ7C7pwEbaFU5PgviIX
+c2YkdZKoMO4ZRpRpFiOpFagNAJ5RxhbW0a4NI32rc3y7VXPFuu+r3Nhe7tqZVfi+vbcigHe2NTb5
+lJM7pjQzk6Zim0peIayiDuz7cjtnZkuHBgB3ilw4p+fFEHqAq2OYQ263ElTEnCiaotFtkL95Vfyu
+vNLYuUHUDBIDFIxRwGzOr7/rFAlV3awjED1gttgFkJTvAh1kUFNNgFoglCsO6mznTAUdIewM7aKF
+KXdUjppomJW2lLSqrVkRVLBGhkQagt59fBzJdiAqoyO7BYnjuGuSoGkoXYglYB7krAaA8K6OYMhY
+qV9dMbDjkO/NwPT3TS0MrJuMoqoleqVN+X0Ax35jomX0xZAU9bZX4/JLZbYvl3t3bjW+b/JkIENh
+oEaVgYT05qiVp60RbvavmPPZVlD9gv5CCQMabcdjiB5HQP1EUFHBarWf4ryIHMHMlPu/0RcWO8ZM
+WQNJh+NWPM1Ty8AySkjIKVVqQ66vwy7Xr0AW55Y6KlkqoBRAqLU8/lbUk1VhqZe2UFFu7phWEu8T
+CgV/T4s6eLbwV80V4zq32Bk63KHFN6rLRG4kBEkV6goKUOBlG/DTb5qqfpdL2Vh9fAANZMdQzsLl
+Ij54PIBwlwK/13AZgQdFu09r06VirrliUNLx6Xde5oA6Fjx8KBnzRrLwuIEAlpxoWWWXCjWVdUa1
+CNob0aqApwKlOlfsQteoko3jjQInSSAHCB15EtXgihc5XZYUhEFPkmWoKHPQc9xf2L4cLDt2GSlr
+Ev0hq9Wg3gVKm9ZXZlCazeg4oJpLz4h1ZIXkqrQMPYbaNwNpyCsg7yDei4ncrcuyUJ7zrjr4ujDs
+0REkexPnkq3QvjOMMSkdw2mkxtq1o1BeCYVOPY3F5opFWqCoiBcuzB7KsmoK3UBJuWj2CiC6laJR
+1fS+4vaiL1P9U3X6Y9026XBl9k/HnJZlBNrftDZPwqNRhpPQSnPuR8kpccuj2JmUNrsys2f7966V
+xRIbu8Ka/BKnzbGuQ9EmkR04YMImVX1Kpr/lUV+6H7Ud+sUEM3D6XEG48N2kHzOFiLKEeGVW6OEM
+qoMW5AepdKxRWkFCDYUWBQbYLFH6fp/NctmLa6OhVoRyjMfcHKnhj+toI7ZJ9L0Jq2l9uVfnxpEl
+O4vaatjJ0iN4kEHDRGNH0qNeRR2pNIUb2YPoapppfZC70WrcASZsfGWVXGt30U+9paa3zNXSTtKs
+uon6PN8VcDgPUQtbFxKt6ohxJF1xf6eefSYEkMOHA6SR+lq4v6GgRiyBp23HUOtfSGqRY6QKEcUx
+8rEok2VC8/Xy8M7feOwWrDkhgVoFCUqSGYsdq1X8nhysX9qdV2euXpaQ1FMKRYRs+HjYSShNBKMr
+kO90JEWOV06sTlPc62pBbqtNVmI8teuh0T4eTFvoMBCQEAgiBL/kn6IoRdGMPBa2gPDoRompTIeB
++gD3VLMTqOCXh++MLzlqbV5F76LO3pf1etDxVpQKeZKjhNQHOJ6MisiVlTHHJ4t5mvURxXl1qKSV
+FvELdozCXTAVdtKJ9T5Aa26TZ6m4z1PNXBWG3j0PvSDEdgqM9GeB938Ei8+YAorfcD2JrzmQK4tO
+UnRDDUzD7j8JjfWUUHB+L4ly6xSyVu5yaGeRXQSedqXHZ1Ym1JVZqVVGykaXFxsEZxK9USSkOjTJ
+Q59LQVuskCJqQ6EsfNxXo6TzFl3rHFPekNl3s2gW9VirqG0gSZB3N3pbojUITXMfoo26bTyjCewE
+qcMrHubMlAJxgDsQiJiUzS72/ioo5alpaFVpEVOwk5Aarj7M672WK+3dMMsaZKZVUyXahVeaPlm2
+86arzwKlKAwpUJSPl63m9VmBzkxhIzZCFYWYKWuwmO5w2ThOZpBW2F7RQxZRjznxLZU3KFU/sWan
+sIE0Wc+8a464yVYpjIxbWv47bfvpD0t4X7p+rkd4F8JPqudNRLCPexSroRpqBWosMXVphV22wvTa
+CXJiXFkqZ/ukwkszTZABfenEoBUVZg9bh1UZIweJztqNmLTprhza+opvOdcUeoZUFOjzRrukkTe9
+l0GVh7irlX5tA3sILsK13yi2GK8Eh+cGb+akSaY0ly4sGdFlagbhIBeFXaliuKoEYt2gD8rVh6do
+3mbYGhk86g8Wx9jaNwKrDENcmEaNE/pI1P7mqXllgs70hYB6xvNow4RbfbwQsCLJ9BOq+vt4tBxS
+9cL3rqXG8YoFnZkcZdZcgCo7E56XwswGdLlA8OPCVsvWW8OaqZ1Y6SIHOORKHuZsh961NL/+zjlR
+RlJ60xjBYdO7L6aRKatMRvHu8tycBB4IJgBNzr4Pn0t6/7gRxIlKpHMofkKvBqmFaCifUqXPdxbq
+TVQo9cOwudzgsk4E0JAWKZSwFBVJQOq7jlucyiRKevSabNW3GECEF90hyyjItjoZaSLNC7bZ0Pmr
+MdQsSGml/LswCvtaQ10zUPoPkoj/eBpVRy5NApuFTnH8NIFI4s0cWDWxEbwarSCge693V3C+czNp
+QNKnSJeTJzjEcSN62U9hXVCwPSAwETpjH+mNW1Ptrl+xgXOzOUvC4+AtfMeyFMlT40xURhYnAmVI
+hyPmaYu9sJa0bkvF4bWSn3PdMmFJoA+HqDImftytdoAJCIELZdFG827ibix3BR7UvbxgzrYC2IFy
+3Jsq3iIAMhKjQisCbxjVaXWbt0FKjbcSfnyKGDYOUHhDJmo5cnGGjIYVBnOMagR3SW+pjhRqwUdh
+IsiTlO2AQyGnB145z987kzanTmiEee3HoZIe0nGQ3cLLzCv+9hTlmJuBG6Rx74HOqW0e0nfNpPqU
+a2JqQK1rvfBWgIS2lsqEuk0NtTixQ0NWe6SwwWOtG94NWPdet4riyt4yz/5R4MpDSJoERV8DaTGX
+Bwxq4dAF9ROCAL2TpVUzBHX2SR00sbvV2r5XnKG3knBXdVQafdwMOAnAw5K5HYMQa/bh7/ov5IEG
+6Q61gDGNlJhaO310+yK8VVTqmxEh5P8fXqNsPDL4M2o9DPrCp7WyMcwq6/i0IEBxoFaqtZFO1yzh
+dOuRmFLQMVYQ8u7LowB4sz9UMDFtPQh9JzGNfDdmk7FTPSu4soROHQlNmSgMce42Zh758QjiK3Wx
+0hjBPNZgSI/5LIMjwhv5bNWK9jPo0967YufzGB2vF2AqVOVAGXFfqrXwJkFcaoNfKjmE0lRwVavU
+vpRtP30vWyNxJSmTvwOBDDcFFzZs00quXy9P4elylRTAE5lTDlEkXu24x2mG+mLXtznSypXvJrrx
+E9X0Vy0DnCqtLLVb9VpEeerY5hY5sJJJA2FVFlZa9yHKZlI51x3LHFjLtt1iKtmVmTw5bMD+pxCN
+HY71yd6zcJ9y1MCAy7l0o4oEFJ3NLKQYZxpT1a0KT/1Uxt0UIuMQgBcZSYJM8OVhPbNmNa5B4Piq
+krvjRHc8rNVUGHFGatsWEq9ca1yQ0DiWJwXPeV0hJ365sTOOjzQJx2QueABD4Txw3BqV37HaN3Ca
+R73+hF+MnyXPimFdV4nkqnWgPcVKyjF58Pq6WcvUOhu2UNfl56BSUcu+/DRnRp5cLPxMk9B6Jowe
+P4yccAvlVKIDHZcB5tq1zfdeJ5bP0O23k9GLD7X5hTsogg9vZQwCKXRQM7ia1OUdtyumVqKVBStZ
+G9WEGnKfIs2N1UlhfWW4z80thy74p9Q5Uu44v/7OzaItGnmwTtEPqlvvczdGirEaJcu7aUKUGTeX
+R/NcYxaQFeijRbnXG4HiXWONSjGI0MQ5V4Po4h6dzvauzwwBFfi8f77c1Bnnh94azZBMRG9gmeGT
+PFUbjYx+GZHh/YwaafxsNka3QTwy2ZLMDL5ebu9M18DnYRxTq0O13JJykqhCmLZjjl/PDRORQZKX
+VeWTTeczH58ycxZ40+augRQv1gYarYVfN2j6WqNaodk9tNwEoU2ZspPkDBzwcsfO+FSTmIqiUDzr
+DDYeLxCq8fTEb4XMlpB/d7w8qCNbKEn6ISxfyz8R+O7EDRLh+pWT07l2gRppkhIyiCQLy2ubXkpQ
+4qPdflaXGtpQvUN6m0pJFBE+c7NPfkuhunAluDszjZATCAEMgi9+WJhDZ3Rq2gg+rq4BIfAyrLyI
+S4RYjVq/4lrOrFA0mSENSODFiNksBnZS+tbo+jRHXGOanATdt82od+a2rbzI7TNfuAKynOsaR+o5
+dQJWzGHxeCLL3vDLwbQy0puqvpOFCd0GxJWoJAqTKyt0XoGLMIC7c6iFZQzp2BIs4PYSmWoRL7NF
+yj3u1AroKFK1YH15ZZ5thX1XkzUygdbbRvLOm1BtG6eoCOY2Ur3lqvRE84basP7DOBj1rzpohAmA
+q3Ebz/GwIYgDSDoiDFYiCmQ4sNCTcatG5NTccRaBuuIiz60K0Kn5HENQcXKZjihOOsIj+C3kUp66
+ZnpIc4qgdOIp2yij8spEnWsNfG+mT81ai8s8XpHVka5Q6GtXI/coZWGlrOvYN3biMBQ3Uz+1V3p3
+ZsrwyKDQqPjTprYE+gwZISIKApDWKND5ntBe6VwfKcZrUcSZxU4TMygGPquK8zV977e1oeBKuibE
+jgeq+VIXrejWNWJ0+xCx8aqnywvxzCgyiKQlybJTEbtszBukIaNwHtleK9Ayl8dBn7FSuSnBEwBx
+Qf3V4OPekR0bpJSYhJB7uW1PucmdO4NMBWcXek4s+K4qU1lWt1wOoHrVMEsF9+7lbp4bU4JqNDjQ
+xwBnmofhnb0FiOwWSJ0QY9bJXiaTuEpSBfkwlNCvuMZrLc17w7uW9AJKGIygzC7aJux2uOomWWVj
+3BVcXFcwlZc7dmaroRaZs/wcm7CnLDqWNpVJDZmUIVY4NRsE+oRPk+5ZbqnV5UoYrHFvlKH39W80
+SnH1G/2I09KiUYSGeyk0lQwBcQYxhAbyOR31z4GeVWtRL5V1T4nZlTbPHM9w/ETVcFOhLCyriWsT
+4f6IAk60RUrJpvSQYskh+Tp6QcTF70r6qqVi5WqCWO3kfkivOJvTWHrOCOFCiaipuVoaP0rtxoAw
+WWa3xiA9tHI22klQ+b8JXtkeJlOghs4r64NQ1Fd2vlOvMy9XLIU4GkBhuR1lXAgTNuCTtidDGiKd
+4a8iJZIfLk/oqRfg1GkAKEMpA0db7q/oj7dhKAcANl4bvPoToiEudw3l2Vr1hvy1aTX/t8stng7o
+fM4FUuPyMESeln4naFIhECsiCG7gQ5WnDDPtk9VOMVKfpFTWmpJRkpn5IvLThRddYyyca/0tipc0
+avmJs4+NlNJjMZS4VghByAINTUPAMO1eywPugOm5QshGrXTq3WIQixjBO0H6dbn3p06C6nsWMrsk
+WANI6XH7OtkIwmScBFWuyo7/fosLtd/IgWmuP9wSECnIEGmcN4D9uCXODrI1JeySmWcZ1KdPJpdA
+WTH5/LXeaWNwxR2dWimyBhwjiAuZU2CF4+bqSIijoanZTuSk/MkG4sZ9FLtS7IHANVm+8dOx/Fb0
+RrGJRkX9crmzp8ZC60DpCEmLKP6ai3inaXU95tYKbnNKqugGMWGR6wEy+cMmObeCsAiBL7vz8l4S
+LMSEoY3KEdC2tY9GlRsUBmH3N7qChhNWD9MT/dzFQMLzQ8iTRvR+Kj5BSPe4XUwUu2s8sDOWb7Iy
+gCrRtCC4Vo7bIXeqpX2G7pWPbJFrlZQ5WlLq7+D6DXvTbIQPh6QQeVDWIEdGFekJG6z25TEv5ykS
+hEhZJZ2Z3GngXqvUH9RPl4fw3FqEdSn+AVjCST/uWooIIOetkT3f6OudGJWqA5iQujJ3hOyKuhL3
+Jbn2B62Kim/UwBVXTOGMjyGMY0hBnSDDL3nB3BDWQfsg+OZePkFGisgqP6lmYoBjDkb1LMuCxu00
+alg+IwY2Vlc6fxoXEGFxVS7JHhBwbuM87jwXOxWyBvxic0eD+I3JCHU7kzFGp+XOuRqaYxw/+mgv
+/g2HQ8NwC5hk3M4S+2/CsC79jkPAKJW1I/CEu86cghfJaOMrsevC3GdxNdg8iDFhiSLzPL/+LtTy
+ugDhB3UMXbGvNVcyE8Qm8i664kGXoN6fzcz3ZaOPhNNerCOuAkfdklsY3IgcRWMlrct1YshhihGi
+Jnot3pFPzPaxInzyBm9Yl2Q7H5DQ/OByPnmMhUdQCzTlCW7DWaIvtQfNqDYEhv0mN1IFXa9plesK
+wgbzxW8aRMbVZWNa7FhvrUPug62CKA782IVjr/IwDyMDWUnT99u9VurjSvTbbp2H3bU0w7lpfd/U
+bNfvplWfFGPU0i50W8sKV42SmK481PmVaV04vrcOvVdNXBjIX6qJXlgZ/V6EAes59VjE1U4Zkfl/
+MorG+2A0Nzd6JIW4GMW/KYV4pmtHSoizb3g3gEslxFZKlHjbKIg8biduPqH+x7iudLhwOG9dI3U5
+s7TAEjmMHDeacx9TEI5q6KaDGHEvdFS03DtoTHUvVdxMYwwW1wEHXb/x25Js++XVebJkjoUPl/T3
+f0b4cEn1af8XhQ9PzG+he7hwdX/pHkpiHkifZK3oyi8hIirId8JvqZsr2ahz7b2XKlzY4D8pVbjo
+2j8pVbhYo/+XpQqXwfE/LlW4mMR/RqpQXuJi/0OpwhPntlAqXDi3v5QKcWIiFxYUajWGgRNoiPBx
+40HGzUPZamySUF1/1MeACv+lKagsRvOf0RRc7EqXNQX/I6/21F1S/CDqIHCcZIjFF2MYISng95EV
+ubJM1kfjRpCVAH1t99EBo5UZIyIlCjC1hKa43qsPChPRqUKVicwod12HYn1NuvLUU+mkkTjiUp5J
+xlWfX3+32QHVe6OCEJYrdAhABQHqYSFK4NvBI1l/uUMnW9zMaCKmUji8UCi03OKqfK6wDcPYLSkT
++zHFbfqsaX65LiOu5Ki5vmDvA6J+DE9EYZRG3/QIgWf5cdG/amKA/ZJRjMKgJGUMjb2WM4NLXrg2
+8XL/zg0ltRWk6zmvzBqHx0OpJUEXUvZFBmdSmvsiyFMn70zpmwrB8MPGNFfuwUECUZ9hvcU6Fyfu
+2yxaM3bR4c03Vp38Xin6NerB6XyxHkhHwPmf5YKX/rZWJFSDqGplARrj5xZxb3cS1OCWmtf6IAZF
+csgmobqWGzs1ruNWF37C00dEyQMvdBWpm7ZdETabvO7k7eW5WpwuZ+FZZK7hzsKQgTW5xAW54yGM
+S4FDiWC24ac0brny3BgyJ1UL+UYKuOfI5hplrjMIGu+3y02f6yAQISdbVNPBQBYdRLgVOcBh4Dyk
+6wM3WcnxbdyI15Cks60AapPdB+2lhGyxGKMWxpOnha4hd91aKfIYDhni8Zf7crrkZwFONFxn1Sxy
+cYtDVW6IaYYW/nydz+S1m7wvank9RVWcbstUbporLnFe1u+Si2+zRp9gDyBQbnKaPO5U53ONRjmp
+ketNpbrhRpvpIdNQleNeQ7Aqq+2sK8vkjAmA+kHBmXFzaMOLuQoaVRU6o49c00AYuWkkclaGkJtb
+DirNuoNTftsZdZ2uPjys+GNIN7Sqs2cuJq8R0ImWkC/lnlHTWKOlyDXTYQukm3OYv1Ywf2ZQqWHQ
+SclheOi6LgbVQjjSsLiB0a2bxud6LHgObxe1mroT6lYdbGOusE8/7JYBGtHsmjc4JMLMxUmOe9T7
+um5brnUgGeqALXnPet8o20nJux+XB/OMJZC4wswBiknnLhlUTWuQBQi61IVDbzid1GlOMlk//04j
+bDbgHJSBWUuHLBU+fD6uqYAA3a+CjCs2s96aruygJ+YGfPKmu8t5bRabXkzVgGo9ycUod6krLx8S
+YHdXRP1xE4yS/vVyh04cJOtdmxNilNpSyrNkt2UVt/JkaE26Ua4pzx7MLG8XTiMFrm7uVaLF/TFl
+bwbcy1CU8WvUt5ZyZYmQQj2ZOigSUCXR8p6ZIFTYHds7eeuYgs+4XI2aGFMDLkxKIiefumSq/Zg7
+bdT/Yuo8thvXlSj6RViLAUxTkpKcc+wJl+12M2eQBPj1b+uO3qwHbVtiKFQ4dfYMKcQv272BIR9O
+M4glK2wxE01sRnfZCDXWslv7eW9dU3yVNVoMeQnheBBvRdDRoXjPTF111UUAhVr87dpKZGEiSivD
+CbKs1w5srLXlVuYC+uzW0UrVyri3OqmomtyXVQ+RALZTFNv5/xf76H6OQdGqfza2ptv77uy+eze1
+wdT+HWuplsRZTGkfKlg+YxVXtqraKxiH5ZUVVH7FcKxazYcuOsWAvFvyqQqOZ0DykhiQOVsUM2GD
+a2I1Z6eEyi2a8I32DqAbnz1K6y8QHRm91th7YAjesxJldwlXpg3StYH81vHhe51dDVPVKrwtl257
+to3wWZXsYRVlacuQvE4qo6LpVUt3qu6n3hPuRRNFGQ1CvkvvfY6NWdw9dbESDbyLadzz3T2otQJL
+kTQA2GRwMRWz2E6qRWoV+024OkHKZkpZgu76j6pozJCBZysy1zz1y253f5uh853y9B/JcAREQJRt
+pn4Qd+hl++xOldGO2HmxoVQV3gqFvPVRlnzYS26x0OruXbc/D/6ApjXKsY046NkaVbIEXlM9zmcP
+mjYVLk6j715mgvnPsEwN2GJMDLvlee4rmq7x2lXNVOC6n0X2ReE6Sj/55dkL+TPK92VkXllZAOni
+xpmW/d3XQZO/ll64juKIe8C2Npfg/pbiMSiWYV1jVmZC+bjBYGm2WDX5ZqrkPJUlx4aUrvv3KWBb
+n7qrGyL1tht3yzRMM28Xj+Hs5s2P5MR2ctDKIsxBNm5T5YRM/C1vee79wvJ+HYx185qm9AzGJiny
+NaiKpIRFbcPRWUb8v9M86uFAxYoXOXqpMtOiWV8GP9xPBgfo7jPEYLqqccAtQCvil7IE2x9i5epY
+sVpkvT+MS4gM8gSdz8ABdapu8rB8zpW7AGALdyf7nafO8XiUM39mbUEYY1sf0Gv3mX11qfdpTfJK
+jOZzKKLdvtoc8HKvspuW/NmNsEB+YbNVN6kXZWJLWIvYgzi0VNalaw9T77bFzollf5rx+1sjUI+o
+tF98/vi0jcGNMZUv31QVQs8Ks54IlCC7m0GEzVlv5+JiNA2T1xgYmjGfnWx5UY+tZbBoiOF77UhE
+OmB2k3XtTk47RLBt8OPcTl0hvKBJrCIEiBLvDoQf53qBerxHib22y/7XKwRTrBTqDyqg2Abt2csj
+EqEuZFvOFrux48rau+0ThaWoclys+R43jpMLVKp4/CBLjk0f5vWXN056KJMgt3bryS8GjBPY2jEZ
+nMgdmBTyCgKst/y0lamKArZOHk1LctZDzPNVYDejVHf1GQQ4XU6qKYblNGnWgudkpSgI/HT4D6fe
+uZXfLvgWlUVXXCqidYVG+v8h6FKIoU7KZQsH53J3W8LXK0R6syxPXe2OdXSYuyjY7Ncp66l9yO7A
+2lbnmaQIbjXsK30dIhqancMAjXKLt8gs9mGeDZZAaQSVe3poq9GMFyNeHiVAg1b1dRVHnrNFf8PW
+YeZxVJXx/6mh3IJr2wJU+AeU39y/QBiyRlR/iJUQHp59r/86LjE5dlayhWTTJZhry8e18MVQIC9v
+luqn5gR03neu5xAvqoTwZX0HqsXcqFzMcDlle3PavAy66riNuR37OaxIP3OK+4jNg6PTRPU9c7WB
+eU8bRLP3EpZeWx8gY0zaiRl698W9P0Apg5nijlJ8OC697x++U+l+KL+aaQuwjBSd+FiMHOyiXkyC
+DqFxT8itreZ6Nl3mpT5u2DKpq8gZP9zFCQWW4C3+zjfCw+X8yanLZryxOYGzh1GWcOmId8PHLm1T
+vOUg0rOfYC/D9rGqMTF/VFAyow+0QGN/nHtoVGlhD6s5kavCvVo17tLygIF99ttHsz09IFst26PO
+Sx1988ieybSZjdzlcfKdrvsbZbLyWSqcuA6Hfl8n97eUK93pWPSTw1PNM2LpR89tGU+Jzij/uTP7
+uF9B2Zas9UudNfVblofK6i7kNvtzcLS8Kdf2haZQyCD8bWE1/VtDs1m/ay1HyJ+FsuUCek7B5Pp2
+Jg1Aiu15iIV7yobGOjcJLkh5roGlF7g6Yw9dnFWpU+GOek58043db7C0wNDiPhxnNmWL3FHR1ygr
+a3gDdNiWHEo9D3oRowyD/pnUvQH/Fy/20qqOQBrq6RSGa8P+OYKv8bYU3ubGCGWwCwp7TTxHejAv
+ny26UOCXvi4XQqONj36NDgSNpY3XduzpvkRWhGm/xO0+Z3D6lm2i/Zt3QxUyzWzWGnDNYMNKZWk8
+cXkW3SSA3N7+zMsePiHw4sSOWqvQj3636Yuc9yu7qQu36ACLF+NHaDP4jWd3rT9nRD1Pjemrv37p
+qfYCeqb7OGyb/8jSaa7+OxY+89CeNHuOs3/VbWOxPJMphNBzCi9qT+OOscUJM5NMHawgkzpx+2jy
+LnZ4oYxgw7l96+2Am2V2cTlNxrJTMC6FFRfQy5cEIR5WBN7YNNWx8r3shuoGKPPQNvtXKTi/Lwfl
+wADDMn1Dgg0x6zCNdn30oQPLo7S6/ETxgWPIYOrBQtQGFz0d2q63wPXWfToxuVtOG8fbp4sWswF/
+xhmTePXKTSlNgyvQiqpVJWbalvpyLtfAxHIN0Y7hFBfluAfpbU1LI2Z9lWN5YeKq6oKLup2Uxq5m
+C+3UEhxDsX3+U8nSOzWaD3vJZDLZvS9SVzvaRmSXF0+EO+cduF23xo6J5leJzf0rkOXsX8Fk59Ge
+sD7highhHYuyRwpkBRPwd/bCIzztw5lkFdOYwb8ZMqBtj32/d/PJkXM1XOqeHZ3j4ipHv9ZsmY+p
+HANRxpU3b4yBeh5Nf45aechMCC204mfuz/cBaI+p+zVRWeY4CTlKH6RyJxdBl2iw6OcjtsDrusX5
+ijavvc7dHmIuymYwxWzlKPdUin1ko3wvqz89t6ZMyq0RR5etb49P2yEp8ryhQ/bX1k5CsQPSWDb8
+EyE+OXheh10Ru5Wdv011VWUXmN1vThyQqSDBqMKoTyK7Ge7rxg+LY+BU+NlE8+Kro9vPFiP9aK+j
+uN/n3iTFirI3Fp4Nk4IJteUd9qUdnrZgbr3nts4rO9l8Uam41QFwsroYtb71gnxgzTp3ozzp8i2w
+U3zjveFu3C3nogel6132bqMzfkhIsstgsSFfsRkEpjhQBLMZEGxz7NpV3DtIq/pvu69NLEJiZjz6
+ePmnRT7ya906iOrDGq1kfH5QejlK8S64hnUbyFPYEMMXKOFd/Vvvrt5+If7MH20zcJ5URVm6aTdH
+0XRUe27xXewZYLNkzSPuNuQeV5mevDfHM3N41WXsASQFJNWnPchhRQwo76/1mpFcrttGkrfuQ+Sk
+kIBznWA6FWG5WOjywYyO82eWUXFTNn0Lnc5yc3CnYVSVCTgBAiPoLvk6OZb5A/0ji2JQlqX95CwK
+uwIPiUP7UU8gPcu0nsGe3vFagplED8/JBzjDEg8Fee3LDiBjSK3eKa9724NC2+P6vcdz3YOvzPMi
+dC+4VXCG96XYZh7VLnpaWTepAD2XsF9zZtTFRQno0z/WSHWA+bLGFBwzldEO3kXWFnHRa/tDbuIs
+iGKbszrShJwPkbuiBs10kZ12Z7XwIPLyvD0J8unhvYC0HQ9hUJfJnC/ELiYbQY3ZPyuS7QWghv6B
+3pvTpKCuVvtyDJTNhpigZuH98kuxnjA319VFJ8NpuCZXoWqruS0V1n4Rv8eqFm9OZy1ZhWeBpXhn
+rN/+Ovae/y2GfvuL9UvxBTyxuek8tHlAC8TwsFdL/dJlotGpxQP1ATvQmk9W7XYvUy0sYmZr7+4x
+0H5DUmBlkUg9Egr35Nvari/dpp1fmLN7gDeo96nedtW5TxM7dubABtKQFlnlcxYITq0EGS/eWFkj
+w5JksKNAXRvXf2AqjzHFzjJTdESjb01HEUyBfoVkHtaXStakw2q1gsPerJxD8Vx2rjoMeNWVsS9E
+8VnlbM7HiNas9qVa4Byk6xkgdyIU97eIKDJWfF3I1HGwRD7ojAqfAIQU0T9rcvQ/S4no3yw9Ktu1
+ygBIL9biwVcLZ84zBHZNSR3SOofMozxH93I2i9R2O35t25kKmRduW8czHIwfhiXUQAqQJSmymF5B
+ZPffbWeEe+WynX6yLT8sE9rZ04gPB13gI5sr9ZBUXob2pChG+23ts5XXpd/zP343bHf+LrOvSBnx
+uLjO8hiJaKtPAxkP8knlsVUctLjwHMqqGkEMt3N5iGwdZjGAaXO7jY22jo2E4xpgR1rHnjDqp3Lx
+SMDlpXN9AC9OcGqsabVo3OT712zJlVX5Adz8xVrP7vcG3DJgp8f0XwPBYz8EkFpuncqx/jlLu92t
+gj740R1n/wuycvVSeDhksNLYzFeLD/ab13Yhvhs0PisgaS8w6biV7T89WuK7m3XlEN+MeS57hSXL
+3O9NcV+Vo4Tw1q7dr93Mk0k2wCv1wQjZNCg3m+Ua1BEgEbcz47/cl9kf4w7543/UE78p1GehvLCN
+V67aTzCq6Vq3o02u33HPY/xXtJ00tSAPBNJxXtuVM7IFSxow4tSbyx1sIgq5SteKqsoU5zIh9MoH
+24F+Bvqm9OjIw5HXx3U2K4j5sfSCE4w1+9NXtefjTTLDv5k8XneHtcuARhU1fKpZawd8HmioaRUI
+xZBpkzDwTF3NCketdX+1s3csj5tDYX9wRsXYU0mlTkHFtY4j1SqI5Iuz5PEyBzxk2SrlfTaGxRvK
+i+Zlcxb6QBR+yxy7QzRacYYDgx+3fqif6ib3ftc+am63uZzzK10IVx6ikCTmOOk2VEm9nCcqVmbn
+l/YYNOqodRS9cKb3UGu9sruu2PBWl1Pf+H/61RW3uhK7d7TDonjPSViXqyCfoqciyoxm97Fmx2B2
+tZclphjHQ2jroL4YbdlVSS4H+TccXY0IqMuaa7lP+5vclkElkzf7HXZHRmyx4c6cWkaR23Fdi/0j
+y7XRN0QLrz1GTu0cWhmqLRmRTJDODjnFXcaX5+qYyHxQdLsvXu3mz/XEom9cqtFz4lyQA6RObax/
+DTCma9b9ziGc7pV/nNZyCBK2aNRDoAzEFG6hzQXYNz/ZWcu6x9PN1dDUd7+L11D44yEnbfcS0Ujr
+0ls3vmbEEgQ+kO0WBDHvs/xhwpe9WoOc3yVy+j+MCcx13iyVTlTRRO/htvZ/6QQ2D9MytN+Vt7uX
+kHn0lODoNXmJZkqEWwaaf3RwWwQ0qQOByd9dDE+UyNR2yCyA6bEts5ErS8ygD+J481ODuQfFvgPA
+kegZjA8rVeoWY+Jb2deDEd6f1czebeBX01dT1vLdhTYMZkk26ruecZ2KdUP/M5nb3m8Je1UDSXaZ
+wy8mzCTJSxHlN7s36ik2XMRbQB5WyWqVXm6GJSdJsezFTk0WND1rXaPwY0Pd8SkA2n6GpS/53M7A
+Sog/2v1JDlVWx2adNCUQa6UDnbOyH09ZK7bbLDxDQXxGsSCSCycASw5rdzmQNRnou/NefSDTzx6c
+xd/WuKU+AsKVn7O2Ua79BQDxFR/cwQ/gGrks7F+Fk5m+nNXIF3+PJLFb7N1j36nw3YPdbi4hcdUv
+g6r6H4XE+hb7iN4cS7+MYNvjgvFhaRqpscMJzPJ/OdpPoIg4ArIC20xCrB886s4K3hd3oJRDRSzf
+inXl6Nh6w9aPP9W6uVJW5V43M0Uyua/bL6nb2eKjDHts6agZMgrSUGLkNJO13LR7p+Z4kM24xrzi
+/rcQW5MfinHD+KiiIk6avK7vO5d6gj4QM+VTM2bVzbRjlHDKRGRfhnMd/Oat7K7O9DidNisphg3R
+6IXOcjCmyJCzLdGhCIs09AYE9A0NMawy2Zu/LRk2/WyNivyjUr1z9PyVjL5TFVA3Z5rmT2vcogcf
+cR9a+w5Lkrj22mZKIrwfrxll9l7M4K18zttaDcmgOqfBkHUl9woxjXJj5ebt8xKJYEvabXD3RElb
+30j43BFHoSqfQlx4g7gdVBkc3XCxj9zjYSdzY9W5dWbxCQeVdXeW3p059RpvvmnYjtsuaqZEL4HY
+puIK10gOx4K0uoiJReIiKiy9nqx8CIJ08kK21L2cICNpll1ldrPfz6oZo8Oui/radGbyKMA848YR
+ALr7cvM51bogZ4zZLFN3UQYMig47vOYPLxv2rzHS1phyD+ubRSvHTqNt5uFu6qx9V6IevqO2kXni
+k6H8MGQwt1WwqSKlZu7ulDaiebCwYlA5LGuawKnuXQWVJ1vK6dN2TUvaUS5yuZOZk/tp2IWj+a53
+Yc1xVyveAhEq7oJFqk5lOLu1ezoLAFhxLqfoxwec1h3Gad63zy1b7OeQweGFWS1Q3O2+Lh/QlKOf
+dumb4hjaXfeGcbp8X3pRTcnmivbTKjl1Y4uK+3UXVYTpkh/1R3sC5xdH/rI1BzEvUXjQSzaUFxO9
+7jl2OmnvN3kTkbPslMXPvpxpL9rawRnApYHdpOVQQ9jCqrTXhzCs+po2h9s+1xrjBKzT907Eeir0
+p5IVaagT2KC02oYPk/bryJ/W4RjMqbUbfUvyPFLLmsaMoMnJdg9s57ctPbVh/BJm9cP8p9nPLQVj
+jeNjWIkwPDghipNk20azJXvpdXSmgkVZiTB67zlUhmk4c+78f44JLGx/uQ+lc+FF2/BnzBZcTrNg
+Gd2EHjNljQnchU6P8PvhapaOaLDodF26Qxjr0SWehqJNun33gJJt9c1qia1LtdoohfIdh9mk0BMm
+8sWkBvB2DjkGCpgcGXA7tOCQK5b7nqppcSz++9rf2W5F3maq3WqPO11fmfhd6T/CqEZVos0y0HGr
+2+AOSzo3iNXgL39ZiNdLTDPEGlKf2zyk7SQKGlZDlD+sBmOcmEZJbZ1WVLtb6mncOROvBV/Po+PI
+2ybL5ieGKi21vek7+xy+m69Sy4UwjVUTP16STccis9cXB+77/dBqpU/I9auHucttJ/XwiHhUEeaN
++HkrHN87f3MYV9nFQiZgzY4tjktEy+itLaocjUeVr3bS912539ayplTzOAbbOFQLgMJhFxh3imbf
+mutyCu2LaRjUGg/M/18KniqFsqYJodCxpZ0TjEteqBKtTB5rELIUor6Xn5bcDfcUY+KBUWZWKeCK
+mI5nib9k+kt2jbJOBVXqJT1V974PNv9f4UaQLNsN9h/UQaY4sdc0u3Ws97ze0ylz1pfNE62Ibbs0
+M94YsgkYwpRBmwztgODb4I2lQ0QX7r7R5oUpUN9t+Kd5CXPabSTb38JbhkTTawbM12LgTysEL9tt
+p+tnKwYB5TbuIjHZjH7ULjmbGls236Iod5qSMqpfMib0w6ENRGQSQX3wEOmKzIntIqh8ljXv9JlN
+U19mrsNer9KMZWIPZ4YuDchcp2RhxtdyJ/eeAkBLb0qANMrnaIL8F9ssXT4x8rFpYYz2QiK0LHWs
+6pCZlAnU8LDA9atS/Ljry7YuyDHWXKxjum7F+u1kxmrI97bhpqrbxr50VCZepl26j2h/9zb2VBbR
+YbW6aTq0TPtu996jAVbknnr9b8gQR2s0/DrLpO9Fl6k3kfVjc4imsfr13JrjdFj1/r0ZMd27pit+
+xx4LD4oDN7sfgC8SgrLeeVsbiV/vSvfpInB65ydbCHl8VZ4x5qL7ki66m/7ATKYxv+8rjltLWDSs
+JGPlgl9b5R045+Q9E7T5iVJ1HxI398wHImnxp2MywUEWFXqOm8UW1S1upcyTcjWuz4MJC4Pefwd7
+MDjB9DtZeLaQrfu/AhNHK6EYDe8cZ6vo9E56fhW6JbMu1GLdNtU50uiiyB47jk+VbMperxmOsH0L
+wT0QcVbOtn+rvV36jGba5lHbhnyXP9ndO1r42BqunHdhsBKspsC3nsawq8brOQsc6KFOu3ppHjS0
+KbHQDp2LZZRYZXk4rHipsjvzjyt0DlakmnUy0E59s7eCZmmNP94We5K2R441iXfBIWjT124zBuHO
+3vaP9dlp4Bh1jrkh7Lkd5QfpfeyHov+XiVbKpIPESim8uv1TpaN5S5iXl/Mxkh2mL44u7ceJFMQC
+IlsQUEj/J8JBWDB8Yn1kYTNeWxNJdq5xf8/aYY1rYh3rSWsZmEvJRuBv6FWVjFt7kW3CQ2I+1qUS
+L7ldTWVszDR9dXVGt3YFJFfHi16HBx9r0p+Jk+eeTrP9gF9v7zyMaOEzWnZtDXrjPCHWVWdP7xmd
+P+tUuWZ5aC17bq8zX+17PPJ6+UeWEZn/VeJseHz2Gj6080wu74ZlVKLmmUWZrKtbfHc1vVmWKCcK
+WjHVNWOioS4eHLZhl8Ok1umQZzMjfo2Uj+trHJKKqbH8x9qu65FLnZMr9KhBv62awfShmwnFiak0
+T2zYW8E/5VrmSZplna+H0OfIMezc2EmwevqLPnggE8z75cnH9ra4LKXJaTwEC36Yw9C7pH99Tt8O
+GxonS2jr7h+VXu1PUzehHa9ODWlykP2vH2w0njF5xmy1YgT8vjTBGsQgcJnhe3kwXraz4De30zqS
+0sqg8ZKxDr1/zD08ph2oCM7D4padq07OlFmYxls/9E5oi3cEtTWpGR86N2ZqrddGyNE5CHiFZbKV
+TPnpI2cM44OC/m+Kl1z/VG+u+dYouT75QhBaKDaa7hCwHeInclxnddrwTr+i4WNtcc8j9Ey21DVp
+7mbCSvpwF+7J2Mr9tLyufEOlWvxZ6M1+YuV5BnLKtX0bq9L7nfa+0DFJj0XPn9nc99CP8lZH4bhN
+B2+N7B8Y98MeO1mFCQAkCllfWnUD9hN0l3flFF02pQo1CA8yi53/eB/1SPdwZE5cro0hxUN5Mx78
+WhTDYZ5KeT3jNsG4SXfyN3NbOgF2H2ZpMW3+dgzKHTVhuXiWoGLoxZzf5l7V8p2ZDIgElLBljv2y
+uDCCuXdXnd1bzJJZyPyth009Dt1OUiuyOfMSQ7vaPXidp6tksBrXut6zZspijIm8T+FoJkJdHjrq
+WFHAPgW1sGHDekKYS0iwzgtyWJwBLLsgNwh6PFx6ZdOdyc95QJxn2XDfdO7QENy37llMjMc4paF9
+QDQegkdr9tf8uAnV/gkGsqOk7GhWx43IPc4zpxle1Ki9v/gP05/p6qUP4kl1IBY+JE6G9q1rjLPf
+1JMsRezWGd2mNfeCezxahzoNOYf3tFDhSFAS3sJ63Yo7xDEH3tKcsmYMqmuH8EHnuRiVfYBTWb5U
+dW5o93ibKA89uiRJO8+hrTwof08cs6Aetuu9fmOvy2/jFj+LnB+f9tTvnF3FHJHMOBZOmt8ZA10J
+cjayr/ytzWo8LCP/Cvqt0DT0N/1ccCnfhn1nyVhXUdknoib2JWvhFNgNd/04HGkJ5Q9zcfbnaDbf
+fhNWsbzXcuX165YMAYppBz2nhQxnmeSQf5kcZqFzOVe8f1/oBAiQMugYdDkuwbYmzeLl7JxpiO2S
+FgPmJogj8U2cKWJLf1RwgVrbPTUK3zdOgyA7SE0REUscU4/dqkR145kt8+NQWxpu+IozUdJ0NFQv
+QuN7v4M3Fu8dIaXgIgQLxFpSojREAyWf9rpZboy0+vKG7My/2QYr6E7e2q1l4nkAqQ9kDnRrbHu1
+AVSv0JATsec8PIXn9Z+rWfgio1vmj1CBm3dNTbAmRvQYHOzhkL3WYT4Ytin3ABkQR0d1YNQ7XQ8D
+acqxpadeJ81gpoX1WXe6s5et/xGN8Mpr7fjeBdvXy4+/Nt7BcoplvKN1z8xLsRRpCEqj/y9a2/Kv
+Ybb629B9fZODj3QiG3D0Sdw6J3tTI6l5Wq6DvFfIPVCIMYPFR2k1mpHDKuvEOFiQY7q5TV9B1RME
+l4JuOSeJCqakqsuZW7EFPPoqhJkcd8Us3yKkR19FY+s3awzCJW6dTn91GETbaVWs4pF8YkehMvLh
+g7B9lXKZ3mrdW1FMrLarxLjoTlCOyYmkxeRDieWR3+3Ubvus4hIDGFoNuMfT5hqCKYztRcsvz1by
+1bWC5VEKClSY3ev841h5Rz5CETSkGWPNy5YvSEqXLe51SUrqJ025zj2aFTyrMft0MaZdB0QWvPrt
+cOIsLL4DuXkKa2mzu/g8jaWfSpQwZZpxAe0EWW7Au5rxHCSl45bIlvEMY34+INiKzzGZbVlusIwn
+kFI3XUi7k4lcPbxhMNX8rfUKVLwiW77vGjLPg1nzgbEW4902jSrI2kddMdYetd+OiQlqyTfL2BI9
+7BkHDLPxUP8Zaqv+oiBgj7tsxf7i2MZia0WM24vMTfXkmNWmaWRvTOE4PvohQa/BZLoJVX+/qmy8
+a6Xjvk4dlf4jbSdXJiPKqz+GzbrPvDft8+zXpNgowCs0YWXmvhWe6dnAN6V7JxhzFxd9l49fxdqf
+FYjUIHW8YeOmTovV1SJel4jzQpilYpzEMPHF9xG1VAU2l/E2dup3ZeHij08JmpNvuLyfLkkC2QQz
+rujQ+1upknHe81db2YiJBiY6Z6JGwbjC6zeuc9liPR0vi2M/anfTjy1gsoHWpay+UNRRhBi1/tUo
+i9u4mM9P8TzLsr/Yh7r76BkI80BHjS4TQWPAipkdFFFM04lW1O7XxW2hQGcnk3QmzuGNHzqOhVwK
+0B4FzXEI2aa5kG2m2KLItXrM5wyJRXUW2sdSboVBj7aID2rz5t71aHVz5StxP0wqf2CdBvPczO7k
+pWMresDTWaLEC+d5GETWwOnTgKbaG03F4dPKN8c7BFZDX3adSvsOzWTnJ+yV0LiiXvOZSld2YBLi
+LOINUq/u0SzgYVIxutzwQjFKTnkF2PLIUex9iMIddOoWxrrYBON3Yniuv8LBy148shiuky+Wb9vd
+mfLj4FmCmLE9Q6EutuLNzkovu8KSdbvvRhxjjrwKBDakeZyVvRfYHhPYdczJ3N2JflM7+BwVpp9u
+YKOvMg5g1tepasCBx8I32T37FuvT6oTqe5VKThc2niHXXcMonsytzxhLSu+LPt5G+Aum/KJ32bCn
+F1v2J2sbUfZoKYZrvuqMtCFwiiIxeI39ljw//AX824+z1fr/Blk0/kFMa/d1Dg9Uacw88PEmk7gM
+Mt1ia8i89HMMN5t9h8LNO04oEdKeoUdx10wsFyCP8bO7PWig+e004tAiFHu/plHW5wMpkSyvdq+j
+gz1k6NRpYKD+OI7C1Hd11HN4tmO7OTw+k3tVe8yc8Lyx+oYayq+fLKWrn63fgz8FenAEmYVrvc/7
+SFHkNbjuSF2gtskda2+TfLEy0nJ/dd/PnPYbpPg/OpubMXG7gWwvKMnPg/1/nJ3ZctxIlqZfJS3v
+UYN9GeuqCwCxMMSdFCXqBkZJTOz7jqefD8zqHgYYExiWVVubZamUHu5wP378nH8xZRQhs0TcR3IB
+nmmYaHISsKMy2EQmKbvdCbxE7Yh2HWAjq5cvAOUE5galO3yZ9ExQXjJZFYhWCtdwlHXiPqhLjgSF
+f+u2lgvltqACnbler/TPpcytyeZT+59yhtWQHcWR/qWrwX7ZmZWHT/0I4oWaVK9dwcHu2eGAK4NN
+C7CvQhuqUHnNGzFdDL2SxAMfrgKrEQ/CY2wNPkC2GYCYa7gN7bqyCwm4XvZcaWznXqnz60wMB2Uf
+JYW4zYShUXcE1zJ2jCZvAhXUBCVBrICoJyTdIc7of0pzJxFMnWkbaI52+8HSUvoNaajXRCCZYi8m
+KRAd0Mmnvd0pMeeJj+BV4JgaTafx0ZlXcR/iZlYrlMevIJVRPciGWDfwlanA51KWoFrBvRE0m64w
+EmWLSxAl7ahVqu95JPevfcYdhCIXHWc3asbywbAkIbkE6Bt+iYgWqWP086uKHjM/ArhM6NsGudd3
+dEiFL7AWaWMbUx+9qIHav9LjY9QqrmPLpW6VmDeVmlIQxt1w4j2A/i1d18zUqm/w4ArtS6Dl4VdA
+B01DwtUVLZCZUAAzMkBliZ2qAIG19ymp1ZeI+NRXHUDz1jEpd0173BGLMLih1zrIjyAspp8kXh14
++MFQvfqp8WOoIJsKCS7jQqCV/4LKd/998JWh3dGTN3PX4lUMxqIVUIfkfU1x2zcm4dlCEg3ZLlO3
+roM2tgLQYIFJcp3nDzVtfIBVYij+FIBHZO4Uxpq3ARxiAY3iaZq6ag1GiE73fADUdkSsUM7MrnRM
+7hSdDNsAaUanz3ps8tK8m1qlF2lWTkzTE4pyB9K2v5q6eqL8NhEZXBoj7b0PaLqlPyTFJTVNM34K
+kUdQ3DbPK1R/QAGSZMbpSK241gg5lRTz6DcBhkhAxpqmAZciBDEtBoFtQ/8WGce4mAxvX1JbDhEp
+IsF1clGmZUgLLtO3yI4VaDMhpWZuqdzH3E2KTGtOBUaOZlw18VzOqk6maaUI/gPJY99tAhRUD4jJ
+SFRYxEwQeBzXbN9+EFFVKKN09Ox4JLzTR6Tgc4EqOI9pACcG2K4pkl60WI4RtsyQ0URttYsHN1U6
+9XcwZcRAIcSJxhaUlBqtFYEBtluC9X2VlMlXgIlKseFVPzx1fpAGFwKJN72NsFDuDF9GYWuQCnZk
+o2eNRNdQkq56kpuXMurMB+SCLcBHOBV5m8SaoHROitxcV2Yo/why2dDcKBrEi0nz8+KmsvLqrh8z
+TQS7YYJgz+fUPvWUuHJUsQUVRkYuFOBz9PpbFiS8cyNkQQnygDg9l8q4ekc4oIcExwxIrpIlggD4
+TWhvCVNT5yhRDMaxiFA06su3e0BtrM7Oxby5IjTSJwZH5H2HiZHsR5RVBxfAA+1BYD7l8wg/rnZL
+AG/lAc8U8S9/yExlJwrU+BzKBBJXiajjHklwEcyN1Cs8PxEeb36nvlz3JNSx/4TGbnc3BlXHDVPo
+/kvZjONfvgHMbhtXVvzT4pKuNjoHi05EGZklEjSRAS50JOV02PE0u9VA4NzAYiDx4+kd/6JGn73k
+hRH2toQ0/BNdXGo0fd2MV3neWy9ov4DmoWOslXQBpgjIsiKYv5MonX6GvK2YlZSAaWtTo1OdKIy0
+Zm7naZ0jhkbyI0TbFdMeacomV6VSR9cznDkddWcBFs3yKQV8Iop8fJ+23aHuR7mxRUPuNc6BKgSg
+jCK/2piFBeyauwU7JdNXJ9+hIVte4zomjq4h6uKl5meYDYRSn+Q78sf4W5kTlUnigB61ckHoB/CY
+/gJuGt3Ca23AGYZyKmxAhHu3DfEpcEjzJZ5pYd4+yGDFvxb0bh41nT6Cyu14meaJch8liprdlVHf
+IrVjhd24l81ueKiDukYGdaoUZICKpPF2Y65E922h1FSe+hHSyihOVBvJXRBNnWQzNje8kgR9E6o5
+z8WhLvXKlRtOzcZvwoH4aPVVdpGpg9xCx+1V06K2qhEfNKXhjwPoPL+KcCoEB621PNh4kTRGP80c
+4MQOiYzOu+p44wDowqX+fgA396ryNOBTS7OYS+ZTa/fUADjZCAIGeEMjJj/7avAePTL934hCzWXW
+cehVAgE54AYqjvIMHwSkRwo96LkMBy7yqpGsXZn0MV1WGELpfgDfec9bpcDUOJJr4PMa5KBemkrJ
+qROYiHYsy0kCwoQiiet50GTIIw3jlto02aYGK+BLVAG/c0PsJU2aBy3XE+Aa5Ukey/DnYILsdZLE
+IMuF/VeVTima3m0WqeCMyPxJcmm7BvE2V1L9QUhlgDwtoiG3tSA1k1OaXtvb0N9AMxWGmD/GRjj+
+MFtdetBpaIkbyZtEwQ0si+YEvlB+6MRVSmqaCEp2J5mNeY9zY/4sCrUGYCnPfdkhHlI+xBkuu0Q8
+WsjgNVfKC3ryAD6B46YXFcSrbiOh+944/B7x0YPzfJimPgcjQgH1dx2H/rNMNQ1EbTmkIZ1Ytpgt
+K6kwghTsZtwlADfAAUDgv3nZGKguiKSJNrxhFjsQ9vxNBWxdzr1H943kGEi+3SropG38qjGum0gT
+BkJ1ImnU/qLoe1XE4aPlxdYtbUMqLr3nTcJc4Bpy29QFqC1DqJLuj0S2F5IGnhoyKEu7ySE72BCr
+vJ96QKliW1tlpLojWAgLnFczHtRJT1NEYOcbJhLLJNyoXUBZNgHRoWyk1DRu5nenRlBpp4s6r/3K
+8dqO2h76TfJl3U3qVz8mitkIXIa4D/Es2QIyJJ1BvLn6q4fwdxmWaSO7XSXSLw9NWAWsNBvS0ZrS
+T+xuGoXvEBD5xsOIJLoZTtKjMhilRyEXvhClMVI0HHRyGeJNnFl3TexNms1jPSBp8CSJAyHKwtc+
+VKavXti1EoDwuc6MGFz7oka1UjpTTx3GmXCg8GZdwZGGGzWj23QsfAH4LM9qe1QM6Qq6WHVtWj6A
+Y0NKyex91WgwirKKfiDS056X65FW7zTEvbcFKKr6+0SqrTshCwJU5C069l+UrqebQTu8dj3Cfg3F
+grv+Qo5US7DrBh/lJqsE3qINbfcNj9UsgoYY5fmdPErAAsCM1ZBoPJF+Fxy5dlMOwVi4lThIqmNO
+UKCdQWzbl07phX7Tt5UUba3AijlTgaWTaQFAnYDP+X7kSpQEw9+DT2Fm006C1DlpDgGexGyMgVxY
+pRwe0B+z0qu+C81bLYyT0lW6KYGmlYOxu4HyQ1O7hafAYpRK+luKM6nejsHkDe44ULLa+gGJsSux
+ipU7EcTJLSK6VCxsUggSVSHZuw9Lg1yixPpCAOjZkYSMnNXXJBswUw/hfdznzdho7mwDcIUhQvMd
+zKxKEzKv9atSo+/sKNNYAC02iwgtRtWTQN4SuWyBRsq15ElAXgYqqSDxemDZbgJ/6HfuFePXPJGi
+GxVUujgDBqkdU401eIjmxV+m1/H4o65LrZDqIRlXpNGwaYxE/EHG1zcOT5SMFLSrzBupUEpp56nm
+9MMXevEKimknfoFMpvzuNUmZizMJ8Ey8hPwLCsPBRH9UzG4gFygSGH6lDWizY3DgAALiRBlDJN4F
+mB7ETq6KfLBOFLXHtq5oK5etTns3FmvrYhT8pt/1fO+HiRt82KtUMy4iqid3jdJRQ0LjrL0EEMEt
+mYM+uSY74LpIxDrv7KmmiLEzw7KigCXDJnigJpmQguSdDF4qi807Pc0Bw3Ld+DdlApLY7ljlbyDU
+u5v5oQcUR0zggwlCXt/Ck/R+xQUVZKdTBl4Y6mAmwESwVHm2gpHD7BfBaIDPSihXpBHCuhvU8NRf
+CcU2lGHlIngM1Kzh5Sta5TM6cHpCkS1LfvlSWYGC8GJKSrC5kwJMelY8SjkIAIIs+AtVQ/PYDmsM
+yV1O8fjDGvWpI49XwIL0lGo1UDikjeCk1eReDeEyOHSh9J+aWRl33EG1ss09nz43W7faiI1fkeJX
+hVI4c3Qet3JEcWcTDQ1lbM2cAEYGZnozY1BHNxjK4YrMJav1vU9He9wEqmSWSMuVwlXdcWvu4zxX
+LkxqIrJtIjDPEz4fCummhgz4u/LE6UYPzaSxe4AV7b6ZqL/dwj3z0DYVjJy1CVQt3+Di1RiXU6Mn
+xRPvAuFJsCiM0gYqRPD5ekSW2/SF9JxkkyqSA/I8+mX5USfYPL/AKHoSpKldUYIa/2bgGGrRcrEy
+jSChUBoDZ+tThAcAFI5fQZd2+G1YUJe2SgGXx87bER/a84zrWUvgvbgB5gFIfyLXICJyRhVyQe5O
+pFGzSoA/NIRV+YfQ5p7dxmW7M+J+uBWEBLFXwfP5dE3rJnEr7c4PvyR8z8Pj0wod30TGli7YMdca
+DmvVAFtJbahXPIcSoMztXgQlqMDuLG7oUVj2pKn+l2pIgAWfH3zpKoa5HKPLokjXUdFn/ZTj0fEJ
+0zVad5kde1y5m0ryOEgploCbmFdFCKyJKpoPM5v+eciLCo7oJs5Am5DEUPAu9eb7yi9acs+Xv2jB
+6Afw7JVVyufwc5U4TAvTjXxLdkiVnkpSYQIPvfAKNtomaXrNzSJz3GUZFQC594GGj5QcwJNYKyu1
+lAB4+1kYGM6qt5KiL62KyoEI3ao8ibPUp9wKd84H2JFQjYzrXM/d86uw1IaYR5sVPoxZ3RRMzELx
+q+jVDIt3kCDAgc2famgowOOgS5EWDtrwE5NfeUVR5NQ2NGgI6Nq8ByVtIX0BQLLO45o+PHRA+VYH
+ZkKaK4HFbcThAvSctSsyuNu5on/O/mG2N9RBGuvzDmR8abEDzRwGIvgX2n1eRt9sLv+GxddU5S64
+oBJEa/v80n6c6PF4i/016gLElKKAeJiJ/SyqOl6NjPsFPIYCVrxs3NIsy3tLS/zt+ZE/7mxGRnxG
+Q9TYwI9q/mXvJJ/qUculUGVn45AkHnywrVy8Rf5JrZa39cQkkG0DI4MizvEoDB0qVsmJVnqpOWgz
+9M1MpQNN+f7BAG+9sm8+ngvUtwkfdI9pCPI1j4czVcuzUoGdWjXcZg2lYYeK4zfINdL+/PJ9PBMq
+OhsGTuS0e9D3nZf33fJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGICQY81AR1MaLE
+C7tMW858EQj9L2+k0GU10VxJrIL4toILuKIzcmqHYJ1gQoQwkX9aqov3OEKodG6JxlXLe8Wairpw
+C6Pusv9gK2JBhCa8pKp8tcXMQsDkZBSs5VQaJVjnxgJzNJQro5xaP+TKJcBTuKCAiT/+Yr0BTjcO
+GKUBIaBDLbSmfRTI1WagxkoHn1rY+S1yajNaogV6gLSMaLY4YXpeaf5ozltE6qy7PkMYxBl83xA2
+bUJSsxJJliJF80mzFENkFVVUI5Y2JbnVJuTAMI8ryU9fQhp64ENjoCtTcWnW2WxHLDTd0/kpnghf
+XAyIkEnESozf5OM1nTxzUjRAojaaAjA6JcPb1SP1ViWNtmXimVQhFHWnKgAeV6Z74msiAku3GU0m
+gou6SFQ6OcwDs+Sk115rPssQryPuYqnbY1bWbn340ZvzUz1xGuaEDGsWReJKWoaWurcaMHYJvSzg
+oa7WK9q2FZQ1R/ITX9GQUXTTJVSKkH5eTAu5Gj/K5jPnybE0gHqP62in1LUkbqVmfktINZSoQGoj
+a2V+J0fmIoDChlkgeunHn9ID9z80uIHRLOnE77CtYuo7sRfejDhj/CS0g3XtYXJ6K4H0xClhOJHk
+Aq1r4G3z73oXSCsY7wYEU9Y1LoZDnYndRh8E4c6igLIS0E5MEfU/Bf8STsrsFH48VJmI8tRrKVOE
++ucKFciyQavg3Yb0j+4KUMrfY8lakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eL
+kBQ+vUctIB8WJhu43iBZfjzBCM455SQm6KEH5FoNMKa+1Nbk3j6ehNlwQcRjVUPwTV8qAoqdiYlH
+iQ2MgH7ATdzHwPmCqFvJxE6MMkvj8R+CJwr6i+jZQldJM82iF20AES2kTAOsE+gru/7EKNgZIi2P
+hKIsIn52vGKDGHQD2TsYCzAj6U2Ftk7u5pXQBCvb/NRAJJSI2YvcceyE44FoKKl+RvnUnnpRBbYi
+Vw54xRXB4Y9B8c1RFLks3OHJfhazkclX+iGjxsl04wOxMxw3YQ38oxgg/W8gWBfj82e3HDaFeDWC
+UNdmZ5VF2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2vXo8JnV/FJS9xq6RjmATG
+JV4y9dY02sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuXX+Sme
+2CBMERczLhkk/z+8vJHHh7TCQo5BFkLczWku5M30+f2OJA91MU2Zo6610Bm2ah2KO5wDu01E79Yc
+4DvVUTyumFd+TAuoRGncJAZXJYz4xdn19AC1qVk9U8HZDqA2oiyQZvoHEPvWzupNKLixP9DBq5t0
+d34ZT3w5si3kAjWsCiVKKcc7pQvFsCzxK7FzXfW/wwDSvsPMU+ttkqPaYesxiKLt+SE/Xiv4UrCU
+cyOHy3N5Zwe9nFk9Jtq2p2TTTgOU9SMRaEheCjKv81sPAq9k52VAOff8wCe2jImqp8kBNDl/S6lZ
+bC/JX5EbtLugEa4jTU3tuij6T6exTM9C9lKGb2UBJDte0bwYoPKb4L6sxMx20Bo9NN6EzOAoJEmq
+rWzQU1uHq5li4LyiYOaOR2sVHLGAqfIsNYdwh7QX0LokFFRH84zoCjnC8UqjZrdTyK0fP7+cBsuI
+2YjJ9tHmrfUuEzFCSte+rgH+B8t0KyH5tMmRVFx5op7aoIbMk5gUUuOlukiZkXwqcLjlU6V6bNg1
+eIUfyoCoJ/Dbcg9NpN6fn9XH9IO4zEsanVtePYTq41lNqKnkMARh96SBBjRS9WlJ6nRngXohlLWy
+JU/Ojpf+nIHw/83Fex91KqChqDSg4uLBI8AdmKZJnVtDso9TTazvJ9g/a9WwE4PORim8fVhR7vHF
+7TDJQJWLCa7NiGsbfSpoXCNY+BxtGz9N3U+vJ9AE5Ep5q3I1KIsAk/YxTFukdaBFNRCMnHAayuQ7
+/C+jHGCJj7289rJ780Y5rgnPtim8rkzWlRRi8QmH1Ap8nfaEbXH20k3YNeJVP6AiZoVNtvdM2kdS
+WNa7AHQkPoACLSrbHw2agik6eSv790TQsRA/Ia4rOgF+mWMGPehMHKJy8DWVv8FMFxifj1r8+VU+
+Ped3w8zb+t1hjPQm6UQPBxxvmgbdrtpZYAu7SFVzUsVqbtjNwoXY02MzE1Rri4R2NOLlJs48kbji
+VXVqf/HFUYmmrkR4WBzZHEE5z1CZsg9+3FFBrL4qVRkDCxP9Q1fzTjs/+VNLTAGcC4XrczZ2O567
+qk/4UyDNaBuaUqK9BovIGNN+ZVYnAgNpG+0QkzcR33Ke9bsVBh2sJkPLYwEZvfLZi3x6iaXsv2C+
+vZYPnJwQD69ZpRx8r7hYQBSSAQlIZB0VRuKuV4EKpFkTrGQdJ0eBWELgof5BED+eENwmr5CxTsUq
+2A/NLVJFauvy3IIFff77nFo5LHy4Xym+U4BY5PIVGb4JsZWBhEbcYoMXuUbeGXcFrOGH/2QoxJ+t
+ObvGB/x4Tmk91I0l8JGKoSluTK8J6HKaQHlBFPXR1/9gMByvKMORZ0vLpziSNgEK0WS9HU2Ybds2
+mF+CEne7Jkm354c69a3I07gFkWTmml/MCxyTqtcp5RvcItI75CzMa93szJVYNf9bloET2W5jLhFx
+Qyz1mLOk08dwYt9lNdhJuwUvekFw7J8CqlTbooXxc35ap3YGBT9giiCW6GMtrj+lgTie6rTP0NTK
+nGiCIldFGIWR3AcrH+vj3CiZqGwKLj7KGcu59apkJTW46plRXe0Cr7zLzeoAXE7fi1XYrUzsxGgm
+2stYKFjkEjRuj/dh3yoCjuO02LVe0A9+agmP2DtB35Ha6RaZPm8l6fy4P6iuS5jnkEfIsF0XZzkU
+dUD7Qg6xnT77cyFNI3U3ub8//7lOjoLTIceYegZ9z+NZCUKnDxMKTaDaUGFVO7+6Bsa55qt0Yu3m
+XIhmCy8ECs/zn78LtJTsYUiZYOuzbuxuJcmbYRMwfw9q2uvf5NJL/vr0tNiCVJpkFOvp8iympehJ
+FfoB7wJUxsjYU/l3mBmf9KmmusCjQCUsEdC5PJZ5pSwgOJFNHW+8XEFJt0Y/hgqzmjnAMSCpiXyz
+ldP88WsR1zUsOHlYkmIum4JlV8DC6SwwfUnZXhpT5F2Jba/0n47u0CpEA58ag+gum4vobqZgfgCB
+xKhjNPkmjdPXaYabVXrkfXZCuiLxDDdE3skyDuaLQ4XabyW0ImREqRzD5zQXik3cBJ+u0TMK71PS
+idkwgQkdbz/AoCC+DSSHq7hXSjvOTORw+rGPlauuLYDuRbUFkA6uPIcftctytVf24cPxC+awwbOc
+CELX8fgXJDx3ZtIvCKYqAS8TVkpwqYZa+tn7n+sEU2M2I0FRJzQeDyMiEd+qcy0PapjpWkr/mgE0
+3p8/W3OufXSlUPacLUPmfrg1/9/xIFWY1VVT6z9aeMJFLtzp4T4VjW0uyTauNyQ4EL/wbFjZkx9K
+DPOoEI6o7aqzaNDiG4InRLF30H8M7cEKzMu028i55yR65E7T9/MTXA5FAVmkA6ExOQOrC3URPEK0
+JSbgoTCD9cG/RvHEc9o+7b4IaK5vzNQDUMZt6p4fdLlD3galz09fUybFWNb3IpSHtD4fAhsNj/gO
+jkCymczRXBlleTv/PYpJzoudJ4nv4rzRiPaRBGZqAVSnHmCJMNdjUVJy4JavgSZODDYbhsBFo+st
+UtlbbJQ8x6pMmxGJgcdYfWHec6FxYw6N98mNz7yOhlpsfE33PGMqGQp+Yg+RIfV2CKx8NmWbR6H8
+gz8GxTUiySIutq0UgL5HoZEgo+16Osc03CZj+9mdQIcWJgRxipITRZLjZYN1MEWaDkHRC4uCV2wd
+oLKYfDby0v45GmVxinmQoAsw8HhEFNSz0c56FmPp+fxMPm4AyhHIs5pIu1BUMhZfZUiERvYn5NQw
+LtJ/SwOaDgkk3VlbwlizS3rbuu/DEgkGg1EioGVCk0laTKhHJ0EdO1pZdNJRkiFnFCBsG/VlJaTl
+NQDcfNvobbtHAFZ2hjCSL1DKTVZi44dTzBsZ3xMJBJc58zgXM05LVNbTwPhuhbAASqQWnUGP17Kp
+k4OA8mBNadvo4nIQpF+QEvaf47FMrY1SKtohw6/O2n3q682oGJWHEH0UBsIDZREr2iQZrEAfehtD
+vAD0cmF+RTsFGqkaBQ/nh1rM6O+hyHKxa6WPLS5tvBTPCOOM5NbWUwjgNRN020SQPhck3kah//M2
+GZnLcXGwpjxHSioLYNsEWHFUsKIvFXFa69otIXx/D0OLgeYj1XddW6wb2jkdTTQBKH2nVftoKMdL
+lOTaa631tV3Agxl216BBxoTD1ccYqUCWbv0LDe0Wh0+6dtAXh/Dt5+j0A+YjSEL8oR5pZjIyeshF
+5OOQ2LUaJ18GJA22Ify2FVPuN2zYuzP4NhZQOZmNQwOf3HgRutQU+eeR7xhE1WMLwQf5LGU3efEe
+2eK9llc/2rD/0UpY6KjeQ6a13wfa0CNZX9nEF2jTr9Up5k+6+EFc5CYXuiUDpVsihqBZwMw1kckX
+pcpSXlM0YONDVtPqvEU/M4u3cTil8j26cOGvKUSRegWxdGLxZytbkboZoAkE+I4XxKsmuUUCtLOB
+h6Hjq+e5C4a4cMsgStxPn6Gjoeaf8u6NVUqjHIzztgsaXbiI2RCXJKPt508qo1icUdBs8114PEoF
+tdXLEs5QO/nBVrYGYVvI6E39B3PhWSXRB6QToS/2kYXTQoL8Gvsoj6IfMKPra6ET9Pvzo5zaHMA9
+OBLUR2jgLvITUBd+0aUwq+NQinZdWgQGrBDJ3/iq31yKBcoOclsUB6WLuq+fH5o7CmQZgI+PBwV6
+dSb1KfRCheLc1SBp/QveCMIFdG/tNkVZDvk0Xb8l9q/hAz+GWsDzvLeALJFMExKOP6DQ098RqggN
+D1Mtr6I4y/eBVa+1XD4urUkbkE8nmiIPvGW9PhDLTheLdLSh5t2LuvbSqeajN+mHDhUXdFubvaFW
+n8O2EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYMF3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6On855x3
+ynGYMaW5LE4GQtynRXi8qCBoIJTFDG3qgLKVwYs2eRGUG/yOIDw01Vrl4cTyMp5KKwRcMgDWxc4d
+pclTfRlNHISQY2fIcn1vpa3gDkVc7CF8PiL4V+zRJF7zAfwYz+a+IFgl2gDsnmXFPMBzEII0OosI
+GwlOLOaCG6u1tS3Q2VqJZyeH4t0OGRRNQ27t4zVFTqg3UgGtnCyhP+8EaBzEN2HRoZPWzIIf57/g
+h2OB9R6gCl1l1849+8WlLQxQqE0NIoY2IOEhVMhcFTH+aedH+bBPZsA6QxBAASvyuDyek+WBO5uQ
+okIvLzXrzdgHUeYmeqD9hiJmIolWRGt2wx+WcTHkYhmVBB6gibGBA+OzcCU1fo0MqXHTMulWJvdh
+Cd/Q+EAdSLDoX+uLqyGYxkBEGQlJ0bFsL5AsSR0oQtnKtvg4CqUNuvH0OrlVkXA/XkLERbvIKCEr
+W3GtbcqgmxBu0qeV3Hf+t7w/0KQvHCyOFptcNhEkPR4FgpaE9ROIl9bzxPvB6vBO8tuLUTE6Gx+i
+4b7L1zpEH4ZkxXi7zOjtGby9fPYlkqEMSg2fIqwryR2QMdccK2+EWwmBpRvLbGbZurHZnN+R8+c/
+mihvMzK1GX7IoGAujyeaDH3biTF+UM02tFun3+Q75Up2g5Vhls1MYsbxOItrh4Sx1cuEcQr3x1Pm
+YsFh/z7cvpyfzNuT5NxslOPZDHodQABkFHkHsMDG0mMjXaP24mKD4mgbum/2l8o+oKJvj9/Oj718
+f36Y4bxx3+VfvKATtZqdtYS96vQOWHj7l3FlHD57tS5Xcj7w78YZkgxZiIxx1DtvV8KufwLXfPBW
+PtjyhlmOsrhhYOVHiTDPZtpiEeKgH+hkTrFylj88lZajzGfi3VyUsJLUaP5eV+XmZ+w8vmq7l6eH
+NQPNN4/fc9tiEXbBMyejFDJMuQF+6iBDYD+huXkzOcZXZDwvVnbCvJfPDbcIuRbGlYQPhuudn2i/
+2r8y+/CX8/C0MsyJgPH+6C7f52md1QaKoPOsEMJyqBc5WAc5pqu7L7vn2v2KZNDaB1sJF0seVGMq
+hRXMY3YubzsOWLj5Ntm/vl4H9m3tvvAssNHcXLlY1r7fEmOvoNUhJ/P3G52f01bcYYy1qbfBdXjh
+2cmutVcWdr7rz3w/eRFFYhUqJSzDeZKBk/If1Ub400GjbWU556N6bqBFyFAFHIkCmpe2lKHw3Xkw
+IvKqPXSxsTantb2yCBqmEdVmNh80U/veevsQyeRCxvMsi1EkWes5v5Xazs1rETwiU5A1dMf+XsDk
+BrsG19hiBed8Dd3Q/QvuPYFYtP9am+Vb+nlu4EU86f0US4GSgZUH+VA/5dflQfnp3VJxRH27eBkf
+s0N4o9xqjys7Zm15FwHGb4ZQz+cdo7BnEGBgf3Z7sjzHsw2n2GQb3zUd01mDbn+otyzip7yINKOc
+xUk9Hwx6kNtwL7mPqTPZr55dsLz5VrZX7/FTAYCeIGD+mTQHz+Y4YtexmWbivGXxIt5InA/Ftcgc
+VMf6kjo4+d3Vtwhb76qdemldrKzyqbj6fuzFKiMrMyb0SMhV3H6jPyXbYNtvRzfe1hfyfq1sduqT
+0lKgbwGujr744kEQoVcdjVVR2xUi8KIECReVKnV8bbPKjaa781NbBgLSfkqf1DsUBbA/uIXjVdWb
+UPaCRJ0cQWmULTJJiCtLVYjV2jitxJw5prw/IgwFwpNeP1Qk00Ae63ioxJT1Qe4w0PIgq3/JrSwD
+F6wkKzF0uXrzKCpNLF4DM2l2WVpRMavGFhLVowZy7g3ak8ah6pLaEUc5vYmKNP0Ko0m6/fQqUsTh
+WUXSTh9Un/fPu2wiRy+hqgssG/GdLDbIsxJT1Sa9Q7U+WduLy5ccE+QNR+0GQL4GC2txDjDlqSbL
+EEbHyLrMcpDAqL+iAYeUUqXlSvyYSF2D7mtqIF9LcbsWbCQS09skGr0nrcmaHB2BrusuylSX7wCU
+lFgNVWFh2oWIfdL5dfmQfNN2pT2mS1SbgIbRvjpeGBUvjawxDLwspa7DekRI/JFoiHRt4A41dq+o
+QWvdEG0xOu1eKpqPv/za8k1XokE4baNC0deI7sv8cv5JCvuDDheKr9gZHf8kAa2mUJSKwcFpIUZv
+WJFtPCnSZ2r/aBL0RWcexkLm2g27YSW1/XjYFD4aCDVKwhTplcXthKCr0I+wRJyqMX+U4De+NmgQ
+3SC8uQYUPTHSzKjR6cRTVQDOczxJv56d7yx5QlUv0kFTwHly8zFCNJRW1ev5j/zxXFPFpOyFegCc
+DXHZlfcNcUhzFK0cA0WcTVMN+DyV/koH5cMjh88GuVIBlUkPmStgnvG7I+bTn1Ciqe0cTwg8e8BY
+1I5SX7HZUOkhbKd8YyRespHFSL2ioZ+8aukorUSwj0eP3wD0ZmYtgTRbFtvGqev9vOR0mUg66xs/
+94QHNRaBBVoNkjgXqBij6PLp1Z3jGEQf0D4SxfrjeadakCp54sG3r3OEcEY13qapoew/Pwr45rlf
+AOwAwuzxKH7f0Z4aow61F2w9EURCbBhP7U+vnyoqTESisEa78u0bv/uG8ajERgM2xAn7IrtK1Fpy
+QwERmh4RUTdtB2/72VnNsA1AlTN4eL4Tjmclj2KdYEmLTPwU+ocoF6YLD2uWlUfCx4BiyhrUTSZF
+1+0D7hDyL1290awdbGIzVxSRwUnQat+LpiYA2tB6BGKHurvwhPrfqKz/9Wv43/5rfvv37Vn/67/4
+5185mk8zcmzxj/+6Cn9VfPu/mv+a/9r//M+O/9K/brrXqmmr1z+uXor6j22b/X5pwjxb/p2jfwUj
+/fuXuC/Ny9E/bLImbMa79rUa71/rNmnehuM3z//L/98//OP17d/yOBav//zz5XfK6oR1U4W/mj//
+/UcXv//55/z13n32eYB//+n1S8pf3L7+fsW57Y//9999fambf/4pqMY/yKlmBNGMfYV8xPHuX//+
+I/MfUEQBnhE0OWPqTCzI8qoJ+GuS9g+NmhwgKpBpFlwOHmUctb//TP8HNsoaoYCGFLQraPr/vRBH
+H+//fsw/sja9zUN8zP75JzBBNuS7FGmGGHFTzvxB/oyEYt5q7w6IOlYTPs+UGIdKwnIzlvQejd1O
+joIvfdf15W+U7i3jGnrMrozKS8/UdhM+ZZJSf0HNEYFPDcVduHNukjxXRr/lNroQffNLWg7bLM/v
+p6i5rLJwg8b1N5TVf1VDzu1n4pIQF6+1GR1SL3A7Ib3rC6t0dD9zNKTmBRk/NKWqXK/utwXca9Hq
+n2Vd3+HI/RRO5a7vzFuEmi4bH6HTVpncvLVu20K7CwZcpnE77fp0l3mKCNpDuNSxUPblcJsCocJU
+VnzVYu/BF5Q93CMZ3X5x18jWc4961RhJB5ndo7TqQykhNadF1F3VXW2Ee4Rf97KXXLXJcIEs3zbK
+vINRYuxc68YOS4VnpJtQVEY0mpU55Fq+HV/74qrRH+XYAHDH66h9ShoDvd0cKdCp2mWIRzZNSSfc
+cJAY26cR/52lXlf+bN+nxFvk6b5mYvDFq/ocHVZ0gjO3xr8x4lZSgx8Kvuy6esij/8PemS3HjZzd
+9lX8AuiDebgFUFWcKc4UbxAUKWGeMgEkgKc/C9XdtsS2/dv9u318InzT0RGSWKwqAJm5v733KuOt
+MVbTJDNeHdw70M18pB+YaiT1bVkeYNFu+eCIor/TtKfWSJohzbZnnt1HxpCd2r7OrsiL2/XVB8Gb
+GBa9p+2p3Ts3afEsmyW2uvV0ZY8reUnbOGuoQNbT205XkVAwKud97rQHwdfpXaXMhmRKyTfnfH+h
+zmu69IIqcq1dKfS45r2OHq2vItvpk3XoTHFiTVrU9J+FOhOzgtdyPS7v1DVFurods8dsuFvKbxiS
+960n9p71kkkwOMWZVt2aWdQPwcmqyUPpJmfu4O85yuwAW3pYAIIo6+c706t3vl58hr55SMrqBMP2
+xZz0l1Nqx3YBkZ56/71M/Osac98knFO2HU9l1n0Cc3KLwwpcMYAc+J15wDc4JNDtnbgamiuZZJdJ
+OhwMyznAXgCN28HslP4pd9Qpxft7KkVP/UrQkSCuXHs6jEG178rkkJsLbYvQtWQ98MXp1+aYXeYz
+PJOy5CLV/XMVZDs+gIfOHM7KFgDQ6voF5bhztCgqM8xqtyzWe+4X+8xJTSoCxc4I5ovaXk/6QD/A
+LKZnLenBxVJvBgH7urKsMzORB5vEVE3NVeSr7LnPzcvUDk4SAwZa1XYnWVVnBya5YGkrCOap9djk
+43Oqxidr8E26zLUNC+/ciqz2qTILdqnfny96d3CKhLsvf1p60zudg/HUGJ23PpNc3tLdke97hX5V
+sFMrN365zh7Kxx0ATvDOH5a31tHY3+R3PHS8CFzbI0WqNODbEBlKqDTjCLImtRPvic7kft0pp/RB
+nvgAjV+03PanQ72qE18u44H+xrdgGuQOHmdHz2JQnTYdtYiUXb91Sa+Fpj4VV3XvvzdreT8rZKG6
+L8GDQLyP7bE4bbU+3yNu0y6vFfUXE3DpPlHDdFt06z2iBz2UZX8+Lzh3TPrRenriefLsRWruVAP8
+2i1jJ3i2nJv2saRNvyLzN/hNXIAq8cycecrCre/UVK0NLZXHAw9RuZO8QXoJPplq2svaneImML6V
+01CcVqV1OuXrrvMSSeNbjx8pOUlnVnalXRJt3VFjTagCkl7baDt7De6EZpyTSpPhWNjnjqKQlxZZ
+3HWzGTNb+QyB67J0FdxJ56SQGs2uc9w267fA6gAwFxPF4L0b43PcD8363hBC65zgNAic03FqPrnQ
+CcO8au6Unp+4ij63WtxrfnJwm+QJiOUeUQooD62qrX5iVEVE4fuV9MbLdBIiqrWZ7reFGfxoH2g4
+PAF4QZud4b/Bhb2gxoTee/9LlRs3aV5eptV0A4QFnBQdaM362TEG2GNArXduml3DGMFp11kBju2B
+5vhJZMYuKPWAzCig11hU2p3n1ZfO2tk/byn/uwP6bgeEjXFrY/s/v24tfrMFus3bPx2YPr9//dN7
++6e7sfp+//TLv/51ExT8xAQTywkeF+pfcC7+eRPkeD+x4wi2kw0bGXQh9ke/boJM7ydstPw7BAcm
+rMTk/7IJsqyfcONQmqeThcGdw7Ho19/0H9gEbXumHzdBLgEoBu8ehz22XbRA/7gJ4g+p1sNPTrk3
+PhTY6tfWqABMEQ22UOM/wUSlEh7Egy3JHVJWvLLqL76QlCDrfq0zOx9AEIo7M4CAEsIrIMMITS8V
+r/RVauLTmki9lBw4GCtnu7W2luw1LxGu7FMFqUd79KUOPDpyJkfllzpMJqc6oWa4UnZoVGIqqMPU
+Jqm9NzBlEz9yTLo4JiCaTpO8qKZZQd7BgRPnukroQ7SpaoaB3egjer5IYbfYTdN4lw6K8ZWNxUjE
+XpNCEKM4REFg6ZMpliLgJ+bBIC78YoRIosPN+FTVlvq21kQGIpaA/IkWR88PV+ItBsWEbeBHnM71
+M6FbQxKX0kuvF3LeBctz4L7pOA36fV1kJXnnKg/ucswbj0krxGOeDO0dsNUWBhxloqdIc9sCR7f0
+XeEa/bXH2PuSTx1VpNDh6Y6GKBN6GEXzUpSifUiovNeiGtzqF2tF+gAfLLJvdNALUAgUFG9kqW2+
+TOYZgg6wL+qY4YDPG0orf82tzKYY1dOT995qxM2qW527q/xFG3cw5GoCO3PeffLTjRnUs0xMVCPa
+yUXpq8Akn94ujzCTS1pEA9ooIs0tRm8r+i6zcy0nFsjbNy0IssFES6UHeZVGWNOME97aXQGowd87
+s24+dUYZPLRzm7H5rtyNnDS5F/qCoyfM5nk8X9xloI04pdoz8sQg7lxSwA1tqFpxnQ92eqFLoVgg
+kxG4RC+elmDMLxK43GGauRWt8fZwmRd4gEJrmahnyCrHHkJtoGk87CrHryODTP8FORF2lmDJEH0H
+t06rCCqI9paK2r9t2wTEsBgz/VOTL+tNE+Cq3/VqHqYTDajZO+lE46HWxxaISQ60J5Qe116Eqg6x
+DPq2c0ntKbw3szXAlU+9egQNLz9rfelQkz47xjOWwXorc2px31bjzIqJ+ahjvbEqAhYAV+9c5S3X
+nl0vFxI/swg1o6zv8iEw4YsOde6FdusVfajXhoN0zYighxlSrl9pXCHXk5a69jJ6w/REMym9Bp4c
+y/uGppu7ls78Fk+4m1xCJ2vdUFeayewra2o6soFQGKFoark3hNcLWkHBnYWGqKtb0PPwNeVgLXEh
+De+asOv6OdHTCvs/NMt7KIHWjSLzasSlqswrp/B0dDCYA4CDFhNgdW6a6Rd/LeQb3ib7E/x3CI2t
+ptGFPfR6i3e1VzRNmp2bnJiauTzU8LTupTHVhKOJ8T73BeWmeHdE+VQk9lxFTTIvrxJKT7+jcN9+
+m/yRaCeYRX6wT9f8GWKPgm9lWHzOAS/4uSb++xz4iVp3g7caV+PqUIzWYx2Ocs0n/Gf5IHDY8PXU
+YKa8mzPNngXXCHYXNFPJ6U9mYCEjMbt5QUuVtoKM13P1xVUZO8pE9jPbcLqBm7juus7iFlHdBZ+j
+/wLDKniGazbw4GIbNO+GtJsf3VSZ9/Q9sNnR5qK7qqumAZDeNzmX7Vj0805gw6oithrcvx1/5ZZc
+dT3HHVnWT5yeKo45lXC1WNRic/rbSwE9XGret7kS7XxAUgnAShudmqLMHnL4iv9tHo//E5vHrQZ/
+dNENHU8mirOt0KI57KTR5f2xghwDeR9ODcTRv9VD3hdpA+l0GizzX99DvkIY6aJpqdzwN2XkHbQo
+J2I5p5j1b5SRs9indPrOLGc/lJF3+biVkHZ+8bJKmpCv/3295PYI1iP2Rmmr+/+kcnLhsNh1jl/8
+f1lOrhm6fAAYRe+S2hrKqS4Bw9ZYi4J2aFUi/Ad7ypcem21culr29HNZeS/RUG7UNPTvbKjVndnI
+qQPb9R9cWz67CioBtUUOFfQfe8vT2RJjbGqL/PZP9ZZ3jWw+5Uvjf0p0WVDw/w82mHtVr6+7FXFT
+22vEpYK4WVtUy5r2+HyvlnR+Cqw1qfezaVEbkGFh/KXNXEH5lbtU6kkFHT39a3Xm5eq1AF6AfV7+
+XGcuTFeeqsxQNH21ynpeS9jD0Q/15l5hH5bVycyorv1U7h3gAsB++lJ9WhbbVvtiWtcxYhX+F5Se
+u3mZKsCS7dAUd+r76nN4gOnD6PGKP1Sf59COC3a7zs+lJP89S39/lqbn9u+OE+4wcb/+KWLKQJwY
+F+jPM4ptEEFKfPunvx6k/Z+2ThWP8B9meHzbHFN/mSY41k/MdilgYvBKS9Fx0PDng7TzE8hfirWZ
+FjDFpMPnLwdpM/jJwleMRXsLSDInM/+pg/THYzTVFA6Td93H8O1QVPbjMdqG5yflONZxQ2FbVPR2
+cu+qwTpZrXZ6+05t+OUM/8Pg4q+9FKMRi/whW/WPI/Vh9JrBzgChYQDwosmYnKhag/ff8yKkAhmz
+YH4IPgzzGNmnvkfhWpxRlL/LQDvFDRSv/yHKwRjyN2+GMzLRLT48UlO/GTRr6FaV2QF/8rdD+eIt
+aMmzVi1XLU0S3iXIO07w3fE0bx1P9uvxlK8NxxP/EGzFYoJt/DvbCj2xIqkJdN9ogGqE4llbHu70
+LClq4Ob0JwTRjOP1AF3Pz/f5kszIk2KjY2i65oDPsGfNgy+3qccWLOgl7pzK+GqmqfW5ydX0XqVW
+usZBV5t61LtJYUXTXK/Yj9N6SGNzhjp6QuoGROBg2to3QQ7ssh0NXBVOlucQQM1i/EqNBWooDDBZ
+RCNGp7vZhZcZegrRu/HbhOWxrAqQZwhV0bwmIo9Wr4br2TZjoeLaHHED53qRPtmjqTb8lwJbSImu
+LkN3bMw8pjnAraJ18dB4Dd0evvWlPYxRglzTRivUkkfHLBy4RLNrvg04KM4sDXobc36zeOXnm5B3
+jJHHNK1pAgeh5uX0ADtmZp636dRc6V7BMMnrPOdVL1xgLoVpAPFdOHdNEedRjpMACilFK8xmvWzS
+iRpEirSaC8Ay8xwCL8htJO4V9GHui9E/yTV3Li8W2cM0cz0hoQxtNSY3Rq9jlsoa13nJIIMjPM+z
+uGkGM9dPesfic9YnTVpoR+tyqfe1eEzMUTH58ZfiHlR0+6XJ2tTnQphZ8goJpJA5Q9UZ0SidWZwb
+bkPkZEDoss8pIaaubfbs4ivjkuSBrn91D/AO2WCmsntYecPdArgeUtMSmmMqbmeIhS94IIpPTr0y
+mBlyt3qEHti/mPRQ65GJtnENQX5J4rQz3MeSyM7lWnjDeVPnvoHk1ozLLkm98TpxlmA56bLBf7by
+wP0ioK6jsZMLyGPEjPbCKWzj0mhdvomxK+V9kDbl3SQD77Rt6oEEXeeI5yCF4BVn3lJWrHDacqKV
+SwrDac7EiyMZhlK+vzQlBgqLrs+US/d1UjApuVw7kR2qhJkOKGIbGcXR1vy1TXFawach4BrJumqN
+0F0La2LsvrQycgQkGHY1a3qKFXTE7smMl4I2WtrZH8zjfMOAfVoiw2TAEvarCaRxdRBvIq1S9as0
+5+5maj33vWS0dMLxGpQTYpD2PGf5Swu7hpuMBqqnxBtxLo2lu85E/l1aREw0BBEuo5I3FfTgCg6i
+DZnWT/Af7BbkqjHEVDEgW2qpce7Os349OyMs9wIsOqh7c2yNyKgr8Vn6mkyoWS2WN1eb4ZY3DX0u
+ISLANlgotfRUZn0y70ZblwBwC61LdoqjPKDFPgesCjEDGOGGpDIjRnDlqxrQccIFmB69cRpADwT6
+RWN+6Bggz42mvhk6aCq7pPVM0gkDvplIqabKz8w+aID8jXr1kMGkdaGEy9QIdbOoidJN87qGKhib
+gTgWw30AXlav4n6s2Pp5shhGxoCqvOunxIorHkF+lG7s4VCafWtFo7/gzJi9LFVRl3eA4jptdYG4
+FQtYUhCs2RO6lTHHfplb+SH1AdTs1tVwzUPLsJfHkw2nhMfYAjMt227/ckp1EXMr+g9pNUJcyxFn
+tHBZcB3s2vLIozGBrEKULLEhC2323p2kzeoLpxnTuzpLpudubL1rr5ZMNsSatKQhgyZjL2iCLu5L
+lI6IpEzh0SWv8iJaq9Z8tqBsN7+H7qa5Y0YX/mg+Igx5B/wr/wjhDSi1eeZrUzn9HsJbVZnwU4u1
+4FbODPOq8ze2GcYWlJgg17v5EGwCjX/UahqFVos4KTwtro56zlBZ2Sf7qPIY3dTdbp/IRPbQSS48
+BLZnfLJi3iVHjag66kXJJh3xv4GMnU1QmktzflR5M8676qg4rd4UPKvR8F/WTZCqjtrUtndpYu2o
+WeUFdD669Gf1ZWgZLqIBbwpXmVY8mzWG5zj/vap6Q3hDD0sr2zwbzXpl9TsqZu40yhrgG5i3aNhE
+NUd2xpV/VNqqTXTzj/KbFATVGf+iynmbQOeBXSNEetTtpk3Ck5M29rt6E/byo8bnEWl76hejgDke
+pPWzOOqBDBCSe+soEna5diKOymG24uunoWlTFMujumhwV910jDa/NEEHHrGlmCpajpqkfdQnSzDB
+VyobLVTLTcBcqb+/rxOFqrlsAmcz9dDujqpnbo723rbW/NRh+HGrZZs0qh9l0snQxJ7AH+LpehRS
+16Oomlpj49LHi9ZKpwK1QPWmwCIDlveMHZFlp02hVXOevtpY6ktWcX39ugUh+pBhA8Juqw8lxq2j
+4IswzuO5sFV9J46SsLupw1RErNf9phizViEeE9vtTqkVr0AtW7pSFL9vUjNOMPPZyx0E6HLToikG
+UY/2UaDOK985kw7k5pUcNlyPo5g9kc1Em/5Z5N707mRTviHeIYLXR0G8PmrjukQlPwrmWo927jqN
+9iaPgjqgTMR13+qRs/RNc2+P8ntylOLToywPxR6JPp/HwkXPRrnXUjT8YFPzGajnF2Nqi6fVKqfd
+uqn+2ab/K9mX185xKGCxPN3Nx1HBfBwbpNsEYT0OE+ZtrqCOIwbawrMIQ0HwUGW59ZQfhxFopeZd
+fRxR9MdxhcqFeiy2GYYoHMYZ63G0QecZYw7oiYw8mjznsiiPk5DjUKSzcu0C9wajknLKrRKt30JN
+Pg5TZlNPp51mu72767Z5S7JNXpbW4EZetnlMabnzOcP9sQoDMMwMmCaN4Q1o4skNHQfOM0sS8x1z
+3UY9ibb2X4LjACjfZkEs283LaJRFsi+3WdFcmwZmWjt1LqdC9NdgmYs7pzM9hvfbrGk9jp16L2vv
+4OyKxz71nEe2Iv5dbfF+wdRtY6syGNy3+TjMKra5luVaMonpStLPWGB9P5p4jHMF1YvL3mqbjTVK
+4WvK+kZ9w/o9fwqOY7TsOFHzOoZr6jhoU8eh298/qWwnke9dXOQNjYAhq0OqEj+lu50wvnNxzdhx
+G2EXWCpKrb+ptC6It9nQAVqu+/T3X+poGf7wWhSkQPfBmYrR+mMjLrQkkTZV3cdF61j3wCdbDSO3
+lrz0vgaNUnpLxlenFqpwKtvGTgHKd/lWL32AAcgxu0fDG3TgErLsjHNLpAVFq4BaNLxNunE+z6q9
+p9fT12O+V/PrKKbVjakP6U6HHEMWtsbiG3lZeUNd3fLiOGoBBDw7LYm9tgxe59GaX4xcubDEu9m/
+GWozu3eFvX5pVFUjdpgSWLLifBQeP5f/Shnf6xFOwJX1t10B4WuW/yhgHP/BL/qFhRuSFi5IEogU
+OKu3gpBf3ZDuTygUgBLwdJuUj282xV/1C/8nyus54VOvQEefrW8RtT+7IZFELJ1ALy5iRI5N2/hn
+jAA/3kXHRpfvS4CMH++iP7IE6IO08AeVAH3Iv/xRJUAfPrf/1yVAXEvfPwzzP7AE6KMOZf/hJUBH
+R/t3j+ftIv6hBejDUvDXW4DA0I9y5xeQvUHEfOgCEimG1F0zUd67++7u/59VuuPv8n0j0Idv4nfW
+9HxY/H7zKh/e8b++d4g1/pdGoA9Jnj+oEeiDHekPagT6oNb+OxuBPrzB5t/XCPThUfUHNQJ9+Gj/
+JY1A27P8x/v+x0agD5/pXxqBgmSml8c3xkFe/rYXyPBzNvGTLAsLFfB/3w704df4w9uBPiyk/752
+oA8v/L9pB9oul49frfOXdqCPxcEf24HWRC8x+bug06N6aOxXo0CjQjvU1D9JGOPw/mNT0Mfb5fc1
+BX18fx8LaD48wP8VBTSB9XHV2F6U8CwJZLaNhHM+PMqNaakX28LHaSpccGf0BgmYnmKiTOxrPZqt
+uhoIJM1hi11rrsN+qPrkFM5RFdwXyVLXl7KQhXFL53apx6k/Be1Jgal+uKuyAU1+XupJw7sH1+Gz
+75Q6PqTApTT7ZE69Xp235pyABKtGT70wyZpMPRxGu1w/Mf1xiyFqBSmXr5rkmGuFvSm74JJ+HJx8
+gjZl46xMB2sUGE3Jhl3bqS6bvRSN6RQh4ldvnk920PSXpjcq9zJr27rbjbWNyu+sUOmi3FqpzmpH
+y/3mVH7WYF4dnGBXDDjNiOBskZammBROL2Gq4VNaaP3yucuClRcOcnvYwadNlgu7EWiYFkVjOXmB
+BXYbUxmcOpmfASJzUi3rIsmg+dUJEk1FNAFhUyX8un6uc8SJEK3PXna+N/bNrq/WWd+hLHhuzPw7
+aXD5rd36OJrMtEJvnDI+v9zTELy7vGekWIr10RHVqg6mkqsdjnaQfwk0t0vRk5f+uh1dPiCheu9i
+WPOZOmx6r9No1bTRPw/WNXtZc9p8d37uKztCcnXKWxjO5fCF7ZDM9LgY50zdGm1ZBv2uX6rRAeTX
+28vyubFrF/wltadJ963Xx+yUMqN5vFJqcsZwaZb+8yQ63Qjb1q9fFGPQ9zILWhtTZ10b8XaV5PgI
+1fim1sEv8LetjCNSY03tc5SWDFdIZTtXs+OjfTlW5t9oAELWsE07u7vMkqTm8w4Wbd8UFnMd21cN
+J3AK2KtwhuWeRnWjud862ZBiyEYDxupQa+OrPovgjrC6UUUMFBIC9w5Rz0jiMyxgm1do9a2q1huY
+hjXjwSajLTlIiuQtZyQAY65nBIGPTyQvRT9Y61klk+GBD9JS8Sjy0oiTCSOzIgB+Vw12zvdV29YT
+ssuYhuOSG2mYd1762CdYf6NZH8tHOOtjtl/XBtgf5bm5uigXnDF6DUY79LPJOzjLoHRmNEb1QHHY
+VEWDp2VXiSMCyOBEJIHVFpAmd7Jx0cTKUsva3SC1tTpYKl3uHLcy0sjs0uEeTi8Tq9xv5yTMa7E+
+9bnXfmX+yAxZh4jV7mbbR8ytaZN+VF056KHV6PXpbPC6YUv+rY+KYA0uu15YdeQSi6CPxZgbarP0
+3Dtbp24pQ1ufcJQS/i/HmIR6kMOd1VNxCIyZq3GdcYOfMNThedJ1rYP5y86NJbSrMnj3NSvP4jGz
+DDo0bJ35i7HRyyLY6PZl4ZWkbTR0tTwqmbjB6qydcYoJ5fefLa0Pnn1NVGKn1SJXSCuWIXaJ3XlN
+BGjaxUNtLfWDzFe7ighqo75AWuwxgbvOksWBm6bkRTDBt4RVciznReMrtc9dRUW3nimH6httXZgw
+SatuLw1tnB8zNN/r2ii9ZcOiCCPsPAv5rl3rwQrnLAFT3vlNIKJlXNV72htjNDqJhfrKr5WddUUn
+H2suHuOgSWae0DKnVe1G5jwnS6tGGJNV6XyrywppGLVtWUPf7gnS1gG12sj/VtPHad5xibvNkjDI
+WqASRTyjsvpmaXNnCA3cskWsEuYoB8Q+N8UG7k6MxtQIbyzzBqRE1xLK2M3W6Ly2zpxnpzo29Dkq
+KVZ47KeWINRoTuYQZ3QJXFaB0pI9ehVpyc5b68ehrLUnc2hKFSbomGk8r2NOoFkP5BItRS14/k3Z
+6oZMS7tPZjLZaeyMevneMCN90cCvXiyJBrS615gjhTxUWj8iNzjfK7mor2qS/qWS9djGC59JXBPs
+tVmPGMTrMteRzGnQnHdN3bhX/ojVMNILixABTUkMleU0iGc+DYyGXu5yJVRK97u4xVNZxhuRtI+0
+Mh0drvhEDyJiVsoNM6z+1c5flmkgZUb5FqOsotJJFiZOehIk/shP1zJ5aByZpldBMdRXdo/9nYl1
+0FrM04Rzm7mDAcfTaWA3JGPaiUO/akt2oif60F305iqeXae3qv2IbE5JQFWD15Jzn76PwWzStpI2
+ZhH5sljnUA4bF87whGGEjT+zwElDJ62Q8hS9N2qu1r1De31GKmka3gvLYcrWzpNzXWoGwjXzRaeK
+mSYyQUZD5COSauLHMkvInpRBdCsy0xGAi285SPOuogQjKgeruDPMovxqzAX2g3bkyw7HQVFVB2tl
+ubWZHVJ7ZmGTiu2FR+eJcFdsaLTaP3DJt3ZkkzEvMXLWQ7LjthNP6P/5EEMqIkayGH5H7YPr84ep
+rrKXrFicr7NnaF08DQNzstEmzhTXa+ks51MrS2c3oIWm4ZCYdnU2BosFH8VPm2dTuARSiio1/ZM1
+cIWBP0IO6/0iteCeZ1ENgtrNO2wPGu6YdNCtN8QDPAQ+vZ1lCIqFOKeAN3PF3uHozZD6F1JY5Q2X
+vefsEocRwwm92DyFtWYguyV0TY5hMBVcG2Y9ZrdMWReSjE4PttWkYfheEL78Siv0+i23tztoTWVm
+HITJmJc4RuGmMb+QvLFZ+rSI0Km5RGnruubJULnm1y5ZAntvuqyUUbKmNV4FO0vfmfc5bsSMNSEs
+WSfVfrIar4gk3jUj9IzZfRjqDhbESA85GQB+4zIkF28/pILdctSag34yzV3axix9/pXKl9Q4TflO
+ir0jTf3gJmNzwFA0aHsqSOc3K++ZgJU0anCvt76txdRXeS5zfZvHua1logsn03IZZ9vezHqQZDOL
+UUW+RtpeAkrQWehfamgfYeVUSkT+aKf9WW7X1syKwWYtXDzl2WHX0AoS4gg2H1xhWR2BO4PgIR5g
+SSY25eMim1A/rrTggYWampz4hY7czuOgb9JdViZ1d421wzP3qT6kKrZ0Wfav/Kx63gXCdvFO6PNE
+bZGeGvVeCCPgRzZV82VmzEaFgLQc7UxvR2VwowCT88MayBlpbbHwESVNIw/KzcbXnhTGPZWUFtgG
+BQM2YvsXpJc9Uz51IKzhpee9Myf2bnGa1D3TqZl+HzrTJh9gr/rnIPNUuFokfqJJS2w9KhwmTuHK
+V+0QojLUTs516kei9LrzsW3cb0FL8eqJIRWAVLcu6obdpEyTfe2U6zPZP+tidp3uU9vBDGI9nUV5
+ohdkSuNs0oI2VqrsdnqtJ0vcWHXW7RiI2C9ZKwPzfMiG/LzUS3GezzWPb6/yve7AmmywZ0wG/9rV
+OxWZgTRPVJMFZTxbjfmQE6XClC68/LmwO3XTujzAaFGe9LcVZndNlGHyX0lJZ+wpZGk9+gsidyyH
+eVIxtUsdi1KWmTfWmDRbUEZ55xissnvZsGPGLrGKc7AOWRFq4A1366RKP8wBp8yMRjRhRgmr2OlU
+lOldPrne12TQhttsqrybdU2MOwFsIBqUsnF8MGHn+6EH5zmhseSsmYzhK92DtRkOqrDZuFB1c6WB
+g7GJsToZ+FS7ye77jMASRrHmBb+nMew3sCtRpHRKXB4jqXvJe8hfxmW2nzxmik7Y62o1D64pteWw
+BD6Jrl7lflx0XQ8HteUedLkiufbLgNz62vnajjV7PLdl57yoMg++0kjdvppu7zvXBr8/T8tEa6tY
+ZBhm874r1dlcz8PNxIOuiZKsy16cZMa2U9ZmfruywUiJ/eQs+Y623DNLT/mjYjEpFu1a/B2DGiig
+ydlypFeK7C+FlQWlI2HW684aDRP5ghCvJU4hXXEoiTUGvfeBLeYrWnNIwNS2yVHGbgLOI+zGvBuZ
+E2SDwZXoXZSW40R0mLC8H+IAG5adVSauFybJVLD0lKLmgRf0icnf1/oveaVoRhr4m6/FslrnMhD5
+12KaloCwS0Z+Sao10GOnyXCKAQQuyfYHprgjLkaXveFY8r1ul+pp1CRnCxeAHD9i6OkmWG1tjDRk
+79vB8Yn81aMit9aUlAqT6Q2AgY6QUG7zfMJIZnlFd53KSbdjP22zCgbRVLS7lPYmMtWkvbZSVmnL
+k2wV852XG+WtbWXz116a/qVV14W384Z+eqwJKyTHrNTtWAo+q7EKME61pellW37IP/OKgCtL1yiH
+DjlwbiCWhqeshgepjsYpZ7NjsNN80zQz6y9q3auehr72TFZWWX8xqjULwloI75W0pJ4dMGTxjbai
+tT6vuiGLQ8Y2x4tVWRlsDken9naa7vQmy+7syHjoeovKb6d4lKnFQzBPls470bJcDXuu7uaKqOXY
+n8I28Oy4zoPlMPsJnu6u0MRdxd18xk6NkSVVFPy6gj1AGitnqaAaV3yunRyn29T3h3w/l7TzYijK
+3UvOrdmbcIV8muRG1iunpKHywO472hkSc2KZ1SouciOfRBykWvWyBOXK7iX3CqbeeV28V1PjGlHq
+eMSnUym8Is5EFeS72q7S+UwUIFZ3edq2b6RMbIacdOmmdBpYvP0+Taabsl+aYlca205Uh83wUnI7
+5jvI3csXfvL6ahWVCEIvW/GTKb0SKio6TVYHjxqJNqIlwk+vc83gSMqqCdprqkeB34V2hPvO5wwa
+M9MXb21v55zRh4W9W+FwAGavUOfW3qEmiaq6Mp28aNUH74xaZDXRwNEnnEZr8nQ8xanvOimID1Yh
+9QPFK0ZW710raxhLU6WXN26PW5ZwYGN99qWp+Se93XtTJNdsKiHSUfSA08MNQqusK6wIfst/Nzdd
+eZZmGi0WXTf67m7W5vQhld18vlAbwLWdEfIV+6EfC1Jt7bps+Ys5X7jth0JOM4JD0aUn8/9l7zyS
+XFfSLL2V3gCeQQM+bBKUEcHQ6k7c4iqHBhxwyD3VKnpj/fFlvurMbKs2y2Gb1fDKiCAJ91+c850+
+jz+jTMbvBR7GD69ryidn0KDHgebTJxV4Y7NtWVXptE0zoX9O7kQ1mHWlKbfpWofxtl4o/TceUlzq
+57z2wMHFM8OXuaPZa5ACU4bP3XLD5GLqd8Uqxqcld60nkE7+vOn6nrYr7UX7ES6gszDAxBwh1uS+
+eymLfuS7UfkwDFnQ7UBt9Go7x2oMdqXvNL/qNfN/S6mZFJlxFThUw2W8LxxnQvZIV7YmwbpaF9P6
+DFQqzx8OLj0W+jxXox1UjHTqPY9Pzq2le7RhOQVLvm1my1eHUKw2wOteZu5GTi76xsxyEeBGQtnJ
+SiJHuLWZXS37rrLRSaF8gelEI3mtIH1pBVtlzWW7554L5804dW51cMJe/FwCIl03k4ncT7gKbr5r
+szH/HrRBmtOWeGmDnjzN+k0ayi90dMXrJHlP0JogslqcRjlbQDVbP1j3So9TmUg5TYxsbCW6U6g6
+vdKDzunAwCsdb5y6Id2NRqr7ETWW/PJQpj3yQCP3pRkMv604H8m3Gzvx6eGTXpg9uT2eLGuRv23C
+PN49da10TebJi2WB3dnAzMC0BePcSQRjLYp/M3G7Sej4Cezw7m7peMyu8x3a/jiw67dKlNPnbDVt
+t/F7YytezXpcOR3NemrTpvoqqU8eCn9mypGS84EZVaLFQVuGAGp0Zk/ux7Y2LRk/+bBw5OaqTBbu
+4lvfjAMIHUTKrpfvpyoMfv23yuFf8U+oDQSbyv9a5nCHTaP/HwcYUFn/j3aNv//Dv+QO4g9CE+FB
+OsJBIkqm63/KHQLnjyv17BpHbyOh+VMJ8ZfcwfH/cK8YgqucB0CUuNIW/5I7uO4fSCPY7yKi4N+G
+MBr+DbmDQzLMv24WhB8jGQJgSYNLpMQVP/cPuqFxpl1dat/dLqD7HuKAiCywjuMm6Jfm4pbuN2wj
+OPqzdOeg7UdPayNGNe7Wpeeto8H50uskED5nat9GnHmTGtONZ2WUPxWFSEwXvPOmXELp8F8AeWB6
+rJr6gpwpu1U5Ej3PlAWKxRwM0TUtzVbRgprHLZHv98d8UA+6l8sOjuD9mA/tnnr0SS/ToY9VQdJa
+bCWU/e8FutrdMiqXkR1lsu7QWGc66F/bRXS3BjjJzmqn7OTnOYfz3L3qOO1vLLvzfwSB7PfcSvCX
++LKHwlqY4Fp1+oXBxH+mbkUx3wXhPmuDn9TJiFc5CO3AhOQmhPPAy9K4WweQ2pGjGVbANH0StNWe
+Zo6RhzyDgkScNxBVeupDg7zzMtvpvbJAEoWz5RzKq0LaJ8Lt2wjLPcHXPmy8UViKF7F90+303Mtu
+2ptF5PfUZO5WDTS5SBWt6xxm4O7IGpSS/uNs1UEi6xZjQVoUL4E1e0953zi7Pqz3Cw6gDcKnaaei
+hrOsq73EqvUu96vonMbdZcSJztw0XijS11f76mawNGO2YQbBNS99fcpCcn3sruW6zfPgqZlMyUEe
+MwkQnEkORv/dWkxPq6EW87lbdjHi0TNS59Pozz5ZV+0qdhP52aBS9buzwnu1NMU3kH6s9ZXmYnK0
+5Z8G1LWJO8jvXT6wDzCDfoot642Qut0UhiDF7PmpapcHxcBrG2cMIXyORa42l0HcALUarNg2XobP
+eK7frTKEyzW/+5LqejW0DUKl9nYdu/M0a3ikYIu4aAmumkUpTzqk5lmKiUChXJJVzMyle1GRv+7j
+wTnEwrx7fI2X1PK7I01r/7X23cNgzYIrO5heorTtbp3JfKuK5TWfg7dW9L+LdWXA342HthEXlhNz
+8RjM1vBb+VHfnWZEr2LjtI6ht22Cdj71C2aa3QBHL7rJq2X+tvhd7N7bQjYXnyBG5qKYdYr7EW/i
+/RCXedmyWCniN2O1oZNvw6VdmJOknU+dRpeHdRYg4YY47q7ekB0lVoYoGMFYZVAP71JJWvPGTwcV
+vtaFxwA471wd8V44KVDlhfNrvwY00slIIzBv2Ge5/l0hRXVfN61qLwgm6VB3tmZg4SZ4wgq997Is
+rXbVVEOVgIvpZD8ZiUm4HNZq1K6oq/aNKUr4OA/0l0m6Ep68tSPLYhpUsfnYuGAAPqspGtVZxHF2
+UcaPokNv1HqWRDhaydXRRMoV5fKwJ2dB87jpruJxL2SpAUdMhtRCD87CqZj8YEjQf8sX6ARCJuGi
+wbz4orSBOJApuzVeW6tt1OqWIAgHhtO+8BlBHTP6mKDhgXaRUet4XqlzRZ+xLZj0YAt4FXJAm7qk
+Bc2HOwhztGpkiElUwY/du0Qz6P0q4SDDO8d3tNNBIWDOhiObo9i28iwxKZYzFhomjjaBmeW7PTK2
+S2bZNusWZ2rw2lP5p5s+X3Ahkaq6LIkqjdY3kZa4IZxonTu4bF16atKU5m0Js/4dKrhyfucOU5nN
+0MXp4xj5lI/CqWYQFgPj+VMZFeIa8dHG5lL1EfjgXpnV3C0MWqxLJ+oMS5E1qOVB2H1sXqxZ1gAZ
+qsA9QtTgDW7cYCxOhayFhR8os8WhBHIzb1x/nr7cXkLe6H35VIiUF6QR2SJ2WSqgO4dLt4wYbzov
++MF+0X8QhGV+zb61fPnTFMhdmHmjlwD2882+5m4V2wa7gHtARD+SYhuBrNhnwm+DI+SxXD/idIqK
+XYslZNl6c1AUDDaHDBSJCubnIZzNPcNNd49pdjyWwXpjW2l+U5iu3YElrh8DpS9ZbrMfgOySpFM0
+77GbNPcqtJm1CXu6x98lwd1UuNcWbALbMZ2+HJWvhzTMLjOkCeYeKdPrrLdvrTVgdVPNJzvkYatl
+abY9dL/NPKvE1kGd6L7t74D1LpsVPtomjAbEsTjjkJm7W9EKeWg7Apy8wsl2xTyAdW6q51KNj8rz
+JWPICuMaq4NsE1zLyqtppXjt7LKwbmXvHysWDGjbDYFFDELCb0XMU3Ig4gtNetieG0uwZRFrcGqU
+dQl0uN4UVnnorpatEdqcrO/SubWhG+rjMFIYQynamLL53bVzwx5xrvep5TxkAguQnZNp3eOlSqIy
+9JLBSM6E5kFeP6EVS7nVi3uagxknDKfVZiwa99LgfN4uqdwzj2Wo23oI6IMPrSb73PRTyu14bZ+j
++djUbXgHe3dMYDVjq2vco7s0O8upjuHqeMduMv2vcA22bpAVSVuU0zFl9A5YzlhNEg5czXkbvZuh
+fukc25wWPhCJb1F8U8iLDVjJ773qC5ME8/g0YfhhukiFtOyMhXWKm6rGHdWy50z8ceDEwI97k09L
+fRiAMzwHXZzROtWrRcvag8w8pwzUMkZccRm86z87n5Sx0XoIfXBGl1E55sa1qM320Z/9E1bSUe26
+qnCDTV9eJ9Irq3P5yAY9BB8ju57WN6gnbsvRPmSiWXdNGkbjDUPUtthEZs0fc7sxz3kkjb0fMzaY
+zKno/Saqr3ZfdnUQPJiUjOlkyJZCJH2l2/qmWqbl2MxrSD59EcXA6rJ0dZyz7yvZkc3oljSx1362
++rO1jePJ0scJpTav6UjEwWnodboc2oH/6AR7+U96QV3442dtpVVwEH9rr/O8Y1heubqSp/TPbnzF
+u5KfFwZADtbOksuXzVIGTlMD3dvE1w7vZjC6wM9xXddSgmB+fl8jh+fKI50u69nR9GF/V1p91W20
+l9XlQ0i7MzzY/TA7uLssa5U7Os3haYh1YW2QDNaPwu5WYIEsCPTjQs3zeTUM+/dNGC3rlkC4EXsM
+bHIildxaRVhRgsAcMBhk8X2uI4q5Lh3Q0ctwbqgOqajaI99F322adIrTU2hnATQfSgOyVqMpU/au
+uE6Ncsy8VA0GLKqlhElfq2op1qSdlrjcWQZPyBMbsM+gKqIjTupjBgeZiCyh90y8DgyPu6M1XGva
+nksoEkXG18McMWbDSwbDFTGI80Ok1vciMwPkfC9jL9RJK94W4Zw/D77k28RqtCNk+XUy4bmx7R11
+WyIsQ261B+Rjstf2UPXtEWlAy9Uj1Gte8Ql29J0T0rI3FRasoK9INiBMZhMSxwvrT+xDywfHZ5di
+a1X1edDNCxFEbCEnPj/1Ko6DtBJWavd9F0yPvMDvaZ6nm9kr7+24OBsddttoYuNgIn1e5jo/yiE4
+URLdK3benxxj8yUwJOdl6fNg1fvB83dBWZpd19cfTu5AG+obuW9CDMzavJW6fejFcEzd+js0yYrB
+KQTJ1HtM2f9vfannb5lCe8MTOjIAOy+20UeHT19QpIk3t0QP5C2rDHYVG6tYvzuTvCt18Gx86Wy8
+aLxDJ8toLBL6NotdBo/etSIKxbsP4giHTvN7HZVJZODQqxh+zmi6RNwuoyMOZqzuwt56LKv8bY36
+i7fgAcNSeA5l+aMdWDpVvbI2mfTSg5cauZl085GtSAwsDJ8sk8uRJLi2/T4O3fNgR08OeWNbpca7
+FFwnvdS+V8PNMLM3BwvQbtMuul3rnmIUrUW0mAuO7ceoxTrkTe1DLoLHIPb35C28YVoRuCl7wSO6
+dltvaLHgxOaDq5oSecpvB8thmKHiA6XuR6PMXi+aS7zB6qrZey/TtPPG9uzWZjrk17FhLtqf0g0A
+7E7xVyeDjZcyXevFeVXLW0xrhOXHRe+ggp+zoChvV7o+ho5etX4f/xwZEyB08LPyI6cZ4m4Bh3/j
+m/DdXvX6yw6t8Vb62Ss50eYZps6WwfUGY/uJY4C2dZ53SstzVy2vRWXf1OsKe7aWDxNI3qAOb3t6
+N+rLXR7Z49syDLdrOz8UNFYXHUXPfmlyhkuuzVHPACjv5viUDSzeIjeOvkHmS5YAxpSvmUQG/vSW
+wXFL+tFlL+2xeTaKLVhQyYdUN+2W8ZiViL5wbyQ7rd3SO7w9eGCLfea7ywNpQg+FBP0FOgT9V9b+
+WC3EStkQTrdcNu0Glj1u03lenztcFCf+D1dthYcLfvF5hqss/yW0FScAtZrzbKQGUSaG/ToEnTn4
+g9e6UJEdB/9Vw4r0HfDXVQVQ9Cwj/WmU9/6w9D56DkMVdU8XNzd7oHTZcLJYYRD3IVP7SJmetwly
+jlQfimzs8x1tjw+IrHFzW52gpo1A6CddAjCNe/b7Fnuv4jqnZu+xioXlgVcE/GnMQD7knGCdEg/5
+4uDa7a2bvh35Xbdyrfx21jFpB3Wl5pdxlu4nTv1puh0rJIcJ7sPsJodlKGiFBrhrgFD6eIUb3IUU
+bN0izkVerwQapMrbTgxgWs6EJd+x+V+pZruGn8qaQuaXFkIWm0kiNLO6HbvbgOVGenTpY+7SIKXh
+EVNFSW5lFSUtzIDmp5TteB5orNjc1mFxalujHgvoo/WN1fbeb095+qVWaxbvrVANFLUz+PWeNMpt
+O9tfQbl+KN/LIamZmBeuEem5cad43M/sOvPNqPuzieWDG3pvJptv4Ftc2J+1VdIZ176rolngjJ+c
+YK99S1YHDFbdPhzqS+cBbIwEjU+OeE6xOGLTRE+PbO8qF3Qhavv7chw27BGHzTQAaZ7XB5+BKPo9
+9j5peOv2UKQ1N2blDQdPeG8eXeBNGrELbDIghFOz7UpIdYtVfRn4AccesRG2aVBcuq8ubPSoLQM9
+bWbHfTNlv+yqNfzJPXSZ/flWae95jsNUnibUV8AsPWl92aIWz3KxXYlvMTNqX/bDE5MteZuzZOG0
+gNT7ohokS7vJGsunppKFs8lZSVwNzqUGihE2obmNsKMdVpDAGNVzf+LnaaauuGEDf2eny77J0YC4
+PMWI2DQ7qJ+9bS7udWfqNonB1UvJNjV3RkBlttvvubv0t1ODhgacz2ee2eqAS9sB7xGlnIzunsvo
+R8V4gNJDaERTa86JFbtPtI80/uRnsuwVwrtr6uWDYdIvS+HL57a2v/ygOWf22DzOc2URxTRNB67n
+tX7OC03JF08axmjjD/STqrqWXmO/WDe05KLbFF3LX7GbiK0xRvb8i+6HVwcnrLfxs5BSTNkouXZ2
+5yJuwRclCXUukU4ybrvKhBqriXfUoTz+vooo6HJHp4/c3WredsS176fVD/cIH/MVGCUWTrAg3vJe
+V95YbzvTdyiTSOjkVeljVBNFNfFAKz+durtOl1X/1LHkSzdRZ2U9+SnN2O0QtTJPDxERiB+6FtHH
+kl4HcfA1rd11q19v2fZRtxLCci0z2SQ2+zkGBL4Lxpyboves6XsLIdQ6oy+BHC5CVHMzLL+Nstnr
+O6PdPGN7NjfOFBYPKNCi35m2NWvpJjpWjBSp1Q1jvba1fzQe8zhglyVI6HJoX6M4nXYRGNN26ZH2
+oZM9RcPwq0KlxpKxmfZyQHZzxg+st+7U7jo2XuKczvG4HkNXdd5jvoRzxdN/VWMwHCwAD8CZyc+T
+sJYpccq5Vzd9GLftwVCw/sT2i/4OgvfyW4cqFzvh2jijTVFM4tDnnLSXKWzqcz6jHT2h3UaXUeeE
+a5yAwSIyWgenn2/ILadlKTQT5J0VcmmwQLaznElMy7Atq7xYndsSCfkOjCYHr+qNvL/Gs7MLsFEf
+oWecP7Bbitd00fa2lwPCyRxBDXi5+VLC83jLKC6a1etOdlYxWWLG88uXLp9JWwX51xSF5aHhzVbo
+pUL/dWTHirMT5dBGB/QMkKjEs1ek65EnQQimUXztBI0jexi7TqP51jTWVRCTe1JVd4gXZ+e5R8TY
+7zljan1fTBkEaS9gxb8dZ5qXUwGdPP9aO1s/0w5ivaZx1etD2U9q/przRl3N2GoJXoLRDspd19nD
+uu+yYF6PJERaJSEDxIwzuYv816mz6/qJIritH714ybrXfPECdTKSKBxCJCFSqJ2f0cbDyEG3tjNr
+M9aY92uBwMzNsfzfxqHkNZjqgXqBNN46PZJmgBqi6qwif+FHcWGhCLr3vWMDu90NwlfpY9k3HXSU
+Yi4+pTeD5FadbTm/A0dX3zPem9+02w7wzpZmHXhmk/Reafhkpn5efx9UrvUBRAMUS6RafI8T5GSG
+Q6mn7HtZ1ua7bxkz7SCTRwwje1PdZAaa8V5rtJq8ddNVwakaBMvspBGw4JvEU147xnuW3EDOA6Ve
+Bwdj9LpbZYkxIhEByXYyTGVfbeVsQ5WIArTju8iv160DMCbcydhLH+l+spDRF7E+m7VzrlKJJXTX
+HeWx+tlLT7JRtipPnDnYSB9gNLdyQhjJodYjnrh+z2VmdmS0c5S1Muzni/DL9DQ4CIRYYkfX/n1A
+p4jYM8/DHZgkGw462FC+gcibi0PEk3WBXVOq+9kBpHXOge5+8GRaCeShMfxwhzT6HOfJf+KMoAqM
+WouzXkeU/yZN0O/n3PUoFNhtZN/HTqXoGLrhsjZ6hU++eE9lkC37VsXhdXGWXeLRO2lj3LcFBmtF
+zXzEFg1pgrnnK4Z8DBea3NrDmrXyknt63q59PDDOJNeqXHV91zhjcYzb7it12mFv25rAwyAGgsuR
+e8GMP28kS3SkaTLkFFSkPsjMPyM1c7Zt4J2seP1VhdNJV0RURHTTrA/t7eKKNlmM8wJ8Wm6noS8/
+Q6eunw1n+HF2StzrrXnq4+5Y6/jJZ8T3Azjui4jKM5Ej7aakJkkG2w2faxPfKtHedaOltmWzHCKR
+T5sui3aqUOseRJR6Q3j7c6yl2MO7cc5RtVi4vvN82UwAqoGaoL8qNx07HAY7QfjfbLj/K2kGibqN
+Q+q/XjU+fHVf/+s/vn/945rx7//orzWj/wchcDEGaNd1/7YT/MtV7cV/YKoWeHgi146IIPsHVzUx
+Mi6kONumzAujMLoyz/9aM2KqZv8IJt0Hp0BkGRF9/8aakfSvf94yYudGAxDFseswmIz84Ipf/4ct
+YyHXiJkNPLFSp91bSzDAt84Z1Is/TBLac4GO7eTYkXxrWjv8qcjXeqncPMo2XivNDWDg5nfElP7M
+Rzvt9wwfySHxfYjgGzvqKdiklDhAlnZlKll4oiy5U5AxmnIoHmKLlXySNqzmmVV32XcC5NHgojCf
+qbT6rkl3RjrVmtiL1J8VbIPPPixzsQVLTtta9DNunNIjQDDpG0ibCaKO8jI1Lor0eshQfmgwX2WC
+bGhpN3HT03TZeeqs53GO6teiDQbWqWGsBRXHGrzGPf0lzGk7wGAwDvaTty6sYEq/rW+hMq7pBWQD
+gsNoztxvtlqZxhLdU9tUVFb5gPhs6ggrgQC1W93ZPTKjqMutZWfkZQBmoE2IJ6OfbenEawKu2f0h
+4kq8W0Grny3ZenMikRWz4zROfzE4Hvxnz4799aArTGVI0GI5byor9vZgmYvwFDrD+uDaDQsZV6NX
+WGsd3nmmyb6EdrlLEbksxONej9hz2zf+K6I/Bo86Qu+8CSkpp0SMxSAPXlQV1nbo4xlgjgdgGzdF
+W124cXD8CCXLZK5Xe9fInmaxL0P/MwuG1OLlFpVgPCnKdRvYuA6S0FEziY6rZrxMm+G0G8uvnZfG
+Jw+NtY+CNj0x5H0coCTZHMUzxZ2a1BC/tY1SFV/MbX63dafTY96hEt8KLBIfvhOY4eSqqfosSjOQ
+UNJl4kRLDuwEsJp8Dy2oFJsR9rjZedVAayfGJY0OWDD6HCmdm/OxK2UxgecKUnT6jB2ouHoWO4ti
+oLsZc4Ro26BsrdfI9Nmj7Fp/gCuGVg493szogzXiinzfsJTZ2sYpiR0tLJ/YGNne1MucWbvOvub7
+gKaZLUZTUfG04IrgombSDDiwiVkct2jLAqbcedadtOM1cqe7uKxYN/nTDdc6UXbUNNF34FTrVVS3
+Rl4StmOLu0OV3GJ2yXYKcthcvTOPmd5nFXgPVlrSFYRML/k5+t7c5UEmP5giL7/b1BLBNkfsGO2E
+lB71uJPb4Rbs3ZRvA2H6V94kdNwzK3izWfXCCMGJCXjZK5Opb1Zpdfy2nIrXq+JvBjZTlM9eXo06
+CVwpfln0Xaxwun58kEYafq2yEnIU9Lo9s0kE7JRY7gPNUGr2rSOiBw8p5wcxhCbYDAJqD1tIlNWn
+pvHB4o1yiINdahSb/mAQFQmRfsQgj6yF5Wz1BZrbyWblhvktH2hkrJrcvziLnIcpm6MffZ2iDq8Q
+CScqNNYPDXn8vWqyN3sOGzo4lXXX2Ai/f3LRGz86nb02m9nNneBQAE1pibey0JqRmrCSzSLWMkvW
+zg2anVtiHtxktVhM0nnz8jhTn/3uPRiHmzSto+/1WGgWQE3RMthnaE9kj1fZOF+GOIY7GBhseHR+
+163NaBtEb1Wn+SxKz4V3ErDyYqJU3gn49TqpeS9gsIOx3lZ53Zx17rtRQkMIMnvJQe0lDgi188jh
+OSezXxcPHSuoYOcF5fiqECZxuiLsKshUkEhwdcji9yiIE7JlVn7SITmXdJls0oJaD9xi2fAWboti
+0MMGz0H3UMOaIrIehRVla8MTUYPcdZNy1nCeqary8obZlPPIyNn77Q8ar8LVgcS4DAA+8TB0NElj
+z2ZimO0Vv1x/KX4yjEFF3ZSe4QPtuMCtgjkP36JFZREZPm6bJosY0eGlY+75B27TNU4QlWoPdbfr
+n/oZzuFGovIztO09Q2qLReuNV0Kc2WKeRBbW+CXuoKauWzIRUkTJ27nw9Mfs6xs5g7S8G1Qk7J0a
+LSBOk6cZ3qu48UnNwoq1ANiUy8uEI06ffOUMly6VJcAv4ujeR10FjKicIKjPKaknhIsVMtiXqghe
+Ydw53UnZzNd5yeR8tLSCZJmK1v2lMWdeuFdwNyFRU4zDmW0eA1uq4sDoj3amyUIHkmQZVM9BjzOj
+W+Ad7/J+kq/CpdmnKcxi1kazHjq2osOVPVymrH6qLu7QmSGp3+SLLddtl0tupzT33N1Y5pSzgrf1
+EQ9j+xQQrVElJVLPFwTf1Zu7eghx09wxn12osrO+hpNswzlOic5axuZVjG3MjeVIwn2KAo4ZaovQ
+uVNFnaa73h6yL3QX8rUtF8iCzLOyH54uO01wQeo/y8LndWPxNX65arF+6mgKms2/L3S7b39ROXe/
+fhkiDP81t/Cfkg/vx1+d+f8y65D68P9Vf/7PHx0Kwf9DJP7zr/+98gzDP0K6ezITHMd3gyjGHf53
+nk/k/SEoSV0/IHqZDWnIF/lL4Bb94bDtDP4zwPAKkPqr8nScPxw/8jAcUZv+rZj9NypPpHb/XHl6
+ATVnRC4zYDyXMvRKTP7HylPNkSlo+uykz0ddftmYX5Op02ilWtcDQlcEA4KEYkBl3WKu3V6HYnei
+T4tzMwokmIibPiSa9Pt2JcWlrTzSVwUGgKEpSdWahULHcXV1Iioqpnmv2lIedcdOpfYs8xiIGeCZ
+Lwr/4ESss7MRkKZBG9BYlmYRsrQfoolUnZQeiuetU5KqxtSu/An4EkMYARUXM1mKsRku1HOkTcEE
+VMqHkg1mvp3aPrzzcWBuWk6MaNsEHKbE8xb7clrx0TCm4lIZWNmalRqJELYzY8fR3NrF6N5O+dA9
+YoNKt3WZs51zrmZw4KPZFr+yuEc4Xxxg+HGZudotb/MFcVbJwXMKnOkVOhicXd+r5Du6H3nbDaFC
+7h+J21p1L5iqMqL9tEd0XbFx/AptzLpmD+u8FGe2wOmTLsoHlfYoN+B/XdqRi8Nn2/AucUIfZy7b
+00LAF+A721NvPRlH2XZBqI9f1VgHMxf2CybGQMKii9+mfGyTdULM5PtNcXRdyib8FuT09hhOd1E9
+4pEO5mqhXG/Qb1sz83J8x8tdG9YMMGLENdQk62moFWliQZGfdOo8ke1wDvL63QhYGkzz83jgMI8m
+JsIFTkGnNs6WYapJsiWItzRS+WHJbLnNVNnUaNfbec9bib/J9sqzMnV6s1a2RhGJYli4md4juGbt
+VIQ6WXTY742xwAvHJKIjDGRaGzXuKS2y+vuKumhHGxAgvUzxBrJuABHrs1bdhtqT93XrPzl1Bu0Q
+k/ZckSSnILgCjtZPS2er/VogmWM/Hh0nLCqoZPh5CzqcSwTygLGVF+L4HponoKDMHHtH7T2RjrvK
+tNUxHwuWbfHYJOxVJvNYzcEU78k1xZee9WjM8ygtx4DNIpq3sxwck3+rWCj3/m6cJpEFF0WCE4RV
+ivKAeEtsuDhjfQxVnr8vtMJ7v8ldB79W4q86bZy71rEstF2zWyPGJr6pLovJkMI4Lmt2ExZgZR3C
+crL6BOBNJV5fNEnbaVLq2mX8xUaK/0ixBkENlt0oLpqfYbrqV4khMLExl586sWQfVa7YB02BLR7G
+QLIk63ixUj0qMA9p2u8oqJqnss/b/ewX2N0GRjZHDPvhLS55bDkeUsXPNcbIpErXcK15hJ0jWr3Y
+gVN8ljISRI/K9nvttuLQtTK6WwH02qR2yeKQskh+Wmek6hvGuVQsWvfqZZz86iZcu6tYKY05pCao
+lOQLDCFLTuk1u8IfcPm2Mn2esa2gROgEP3677lNVOshwBLq4so7r3Zr7wTkfl5DcIGke6LC9667i
+xUOMe+umbVlt8jRGnSC7QX8GyIeeYuGYLYFbBfwA4/4Momx5g55MW4rVV9/6nvO41l66qwYemDDK
+3eeFQvMp6tfoNhrsZpdlufdge4P3HjVrHYDKZBo1uXUwnZ25YyddeFfbYN2n/u/UddyXroWoSPoi
+NXCf19n7THTpQ4qMC6ubcaJn28cLP1YZkmJLtcEbBGvm0Rh7EvgI7MTyOU8cy5uwlGBwOrTRtQJG
+sISYNghYgdGNhdausa3+kkZpyolZFo+zQdlMOc4GvFELsvvFsvAzYC4oEsmQ4l6PcD8SX4uFfCbm
+z5jEKZMVdgr2rTWRbqqBuZ1e28+eNG5+nRv/hcG1+KrIbpd7N/AMJfASPOe0awS42faDYPDxTGPj
+nbMx87+mTjiPFST+u7kvkQ6nS7Ru5v/N3nkkV46t23kqCvVRgtnYABpShAAcTx7aJJPZQZBp4L3H
+bDQAjeJNTB+YVbpM3rrJuN0Xr1lZJHEMzN7rX+tbLWtW5AILnAQvxyUaMFzPvalvZEIVYqq1ymey
+Fma9i4Gzn0fDnKGvUgPJvQiHRtvP/daaZXszaTV7C3LSJ9Z0ASEd2eym2VHJyicdnWgRikUC3L0y
+DupQ9T4DcDy4hjG4rW69qLKzd3WoTi25mKjjR3Cd+D2PSl/RKkgpsqQl0xIV4R1zZBAuu69y7MML
+jaelO9WGfS6CAhVRSxyVymAbEQS2+w1zMWieE0n3LelCMmKBgek07PJbxdHazcT4rUd5ZBTd6aly
+3TFtGcDEG9V31VFLEjnRTLtWk1/WtFQKrxpD+zItzOKSgRFTeDZElGnkNopqFnTdJ9r6YijNtrDp
+3Gizx6Dn6Wh22trzqVjmbraL+HZeSvWaFGW167XVrqzIhjxHVp3UKkPcRtJhj1YkGDIbmSzWV7Zl
+mjyQS7SfI3AkfJSByizH4lMlQAO7H2hYsU4axXNfMl3NMwbpDqDY85REyiVk88ZTmVShRNN19y2n
+RPhBcFHvIuLybOZDK3jCHBPs8ny57CuZ7ycCr8aoeXkAi7jUcxR6exDHWtWvHFqXcRRNT20UtMdU
+E8aDhcyCYbu1tUfc2JHHXjv5rGLoeykmoW8WLe0/cderzynRpkNlh8g6NXpZFM2Vp1n5J6w/55rG
+A7+dHPNUmWp6SYqp27axsc8K5S5GSfM7OdErnEXFkeAmraIs2XvSlv6k991WMCnkJfB5+okM2pMa
+yXwH7abeWWaR+Xk6qZftaMZ0m+WlX8e2PHANY3cxdKQYtZGkowFU4H6sH23GTGBKTLEhszZfNOlY
+HgeVxnMmfMFuapVkHxOC3gaaat4RKnc2PKYcLLDGcj2m2nxVET58zMeqOjvDWNyBSCp2ppO1Oy2N
+sN8U2uwTJEu3fRLII1ve4QrpMj6bNh2tmuy3XGdN7yWEcRPNuI8NjXSds5ltSv+YNF3SnHKkKXkT
+p8vWDGp/GO19gZc7UmllbL5Uxnd0InmFl8Uhzq8XTOxH1JTdYsmeQGpuBDfMjcLHtlB3IH+g8mmw
+TunneCKJO54xnbHc0ZYhwkNNTkkdlQtBGlq7zDnxJr+p9Xjx8uy7Y9XO91Wd9DTR1Qtgh45fYOp0
+7hxG+gBZTTC9VnehVy3XZV8391gVhD/aIS7GcokkntEgiJ6HgYLn3CShEdZciX6PI8HVAvUR0RMn
+ZBlD76ZWgIx50rtLMkVYfymPdGEqaBs9nZQXtcTbtcbvN8zLxo2WxyocaKA0Qzvp16EV4xtGtABQ
+lJPCndPPrZp3GyVkk1zhoDyyQB2/jL06bLFv6Ih90iQtTK18hzS8j/NuOdOiIL0qoI6OpITcKLgG
+/KjA4Y03umIZF7fOZZMu4bZT8/IGdx2rV/LSMP2d+CiUkFBrpDu3CHfzruF0PchpVXFF71NsOx1l
+kxnwj1KJINDLnZwNgvEk3fkRaNYDtgMfv6HuxzkBF7OkEaceHO1Ul9pnCMv3JOAflRCbc+Ws68wq
+JScTKCeqROEGyPkmMOhurrmruFOz5G4QNYtfK9p829ZhiCs6iVBgmBmOQ5luc/Ify1gEfsZeH6Mi
+IdUxQYKgV/q7YdCd3TL082Mxwom2TtVq1TF0e/RYU+EaokJbGKzPyDESdlvkmWuFxooW19SIByEi
+NNiZCxEHwVOtMeOXhEmmK8ZW3yYVP11lhDrsSn0CcfK9ivNPsnKuZq0u93WYUWYAewBjrkXxnoph
+P4D+zb8NPjwSjwYh4xiEM3uVpOwhlQTl917rJ6ZvraLtWzDQXpah4FuJmmxwvq75G/Glq5zy1GZh
+vjWUwtoaVm3vki7JbosQ88Lcqs3GTLp7hK/4DNmg3talQHu1AYnPec//G0GTCOuCDkrTHTrts26E
+9BzadsJNufi0NMOhaTjlE6n7M5Ktm6HVMhWsCSoG8b50+tQLNGrKbfogXU0PTh2I7tsMJNW2NpmL
+KkpCYCNFn5m7yDngpObk56my6wyd7ogoE0eA6eo26YqBLuip9IZO0TjdW4oyrLS7w1vUHJTMJqyS
+jDi9IT+lUX9t59YDPQ3EQ/sl3YTAemCn+3j45/ZQ8XsYC7Phvl92tlpofkUt8qmyEjRoQ8FVJ68T
+TFU0PzfTHhO/1/XxQQpg3/nC37LxPuU/CPS6an9Ol6k+8tQd9kUzZXcY6qKDAKx/oNImZAY94W1T
+NBZ2mCdt/fDvyymX8dembMsf3X9SKQWi3G9nef87ew7L518Sgz9/5a9JnvmHZuqWZZPrE0zL3ugp
+TPLYU0OyouHJZA+vvilKtv8gt7dmAiWdCa/zujd6ivqHoNsJNvLalky859/iI2v/PMlDmkGW4S+q
+1opbfgd0bULyt0EYUlgwmmZ0rerajMGGqhFCHAu2jI6gs34W9oKHi0ZznRT03OvBbsF3Tg5gLqiG
+XUSD5OhakJZUBmZ6931mtXUnV//GXTTY8ReAhyq1bFgj7yZCNcTsmYPR9cFT2sURkJ4UJxKopVnJ
+eqMmomxtmpb6kp1aI0ZEgwzLeyPvxC3rYitZjfRTslfroY0fnVyrrG0Rqeq41YBnkSIQimrAWMHQ
+t5Gp1XsQ6jhYajkP85AQjgll1aT3TsxyFfeZOtFokoSnbgCC5yoaLeU2rbqZV86TpVPY3jfF2Uyr
+kOJmIVnQR8ypfFNz8gtpSGA1aaSTERRsn/dqNbP7jNOSila9aTW6fDXNvhyWafyuIL2ENALPwPH0
+JikbZvCpcxeJmM131Bn0GBhlTD9LgJ61eFUvRYysP6SPU9Xa2X7pxahvR8YqvlKxQnUtdV1LAKJr
+L4d+ALojnDF7giHZadtYn3tlo4WaOrv0NBiFH1XMQ0DVOel5IF7+Jca3MVBmOwkFskUZ4ROO8Wm1
+6TBJr66W5c7sRB5vCpJMkVt2A4ayQa/qHz3J99EjTDlN3piXUbg1mb20nxZNZHIzSjW5bCDX44tU
+g773Cwd7vm/XdfbCgyN7gnZV3YXE/54J3482D+GquapNbH8bhi68gkgrK2MfkJ4517POwHDiL4iN
+hUXYuewbTWju7JjqD6NK5Q/GS6ri2nWT3FAP3WOxpDmp8fTCTtPLke4oE+274a/2rwS3UY3QCOdX
+slu3Qt5yKyHZVhYm6KGqsJW7wmEo5OF3Hz/bzrjMB/IErMLIYI0TVPuZHguoJjzAcqng87Eiu1iO
+07gM9T5j7b5Q6iKUx8zSerqFVCgRXqwuCIT12MQ3i4Vvht69Na0na+2blQw8HfDYlfpJbzDnuI5V
+YWHndmLed1aBy66MG2gfFrLNV8NYMXEm2/V+o3I1kJyITCPbw4+GagmRMVtLrcq697JeYVI5tnlM
+Vsns19wB7BNzh8JCJ3eBLvDYEWaHv8KmEryjqdTa7o2ofP2TZfq2zu0djFNQaWeajJi49WEUZL7x
+q047ZQr8v4WLvGRT+U2bRISjlk+OgmNL/lT20ePD7+XfHOs9IfvPg0kGPDqXk669E4XH0l7EPIgM
+131e+BZ3VcUzTau9aBT2RzNtkATr+36PSAJsIU70Q0imd/9fD8T3QXourt8PF/LnpSRK/3bA8PN3
+/nwimrhUHB566lpr8aeB5R8TBsuxBbj+NXUPHfcf3hb9D113LN2xKefQDUOufXt/DRjI5PNUE45Y
+XQ2MJv6t56FtrM+7n2fzWs9I94XJ4Q3qDplZ2GToV7LtG2eLGAlMoUzXbIxz0El9myrLpqgWoT+l
+hqnn+35SY0fzp7hpJsYLdVJx0fdkXcsvKtzAcSPrWmHb3ijdlo1pWPtpQ6vND+T6Ln7W6tA81k41
+GJdRsVr5VPKf1ZWMxlY7cU3V0zXM3yY8QBYxY78i2QyDbKoUlyUEt+9hkLedvja+iGpMdyWTex/g
+C/gitzft2SK5XjfRl8JWFeWW2ZyDrhwq+iYsEX22aVta1gnanPpFKfuSPxJFSIIaen7o9NTRpoVW
+fbMwh2zTmaa0+5jm9BGTvx7H9yYzQ5KNSU9okbYQXRcXMETw+stlTSEMaTNgCmmi6X7BINgB74TP
+N++UqtPEuUh6/H3z3EQvA6seVLu+7g5DY3b56o/EelMGDeGxJOAdU0/jgBQMFyPCEzkSSjCGJXrE
+lUN8ICpqBf4VpUqh34XJvDcKqgITApjwQliE1DWRAR2SJFGUZN8Zan5uRwY8osVBwNzLbatSrW/b
+PkqT0xRyI7gcHSnHI4SsKELCjTJjPBZzqAjMu1ES3U5W50Tf86jml5Wy0yJGylZLqdmcqQJvaBmQ
+VcdwpNVb2JJG9sDjlX3HPpOxlR/anD0FWSRy/gY9cAMI0tTTDUmYgTiFSR/eVx0nSrJ8m4d6wAbN
+Q1AMW2zrPYJmnFJm+EDG2IpckGE59t2kb6MXoTf2BsdV7Y0Mnk9BpeBRZAf9o9a6iD0xO0grJHqZ
+yCq/axdGt9OYEzPjnO35rDLTGG7ZyhvdBexAke/miYnbYSrToL5c4/DBHuJlT4LISYe0ZawUK/IG
+808ADcLEKUVnnhZYTJDZDCWnMqnbiAFRXzTa+qSbHrGz1ATnElV5qts6bq4cuQzmk6XZWJqbJAr1
+C7OUmJf6VAGdiVFm1NsD0V8ZfbWiRtfx0aidPkIgJLiBBTmVxlVXzsS4PJVWGjBdTCrKuXpSS4lz
+HrgX7tqJpmHh0XVoem3bMlGb4WmdUlkZ1wUO6m96r+QTzpY0va5CnqOuvpqQorUNclREv7E40eG7
+to0fkcOnztfsX8S8iCcsGhJ5KoErLMb0kjtA6w7Mr10cor4xJYqL3JwfcGcyn8oo00Tx7zf4DtR9
+wms4AJoQXhNoMKNKPkEAEtmWfTvh/NA5NjQo3WB+W81BOny7FRrb1CfTgfKoNClO7yCyPaUSP+p4
+TvxM5Ddl2+HRSqDLLfpyA2HO3BqV3Z9svXNWwk+30x21uixku1KD8tV4NyvnYJ501ufpVZM3L1rf
+Vh7coXifjcO0y2FW8y2o1X40WEtRHXmQFhyJPuFatRlNmDgG9jSOLeDZ1CvS4amvN6G2j0AT4RoL
+a/k8VKwx2tnEil/b2jZsMAy5iIcYhB3IRBkDitE69kP2qbIhSWPXd266Ib2WaiD8WYsZxKgMXLYl
+AKgNI6fwoAs7O8wGywiZtrGPx/5ZWZFHWis4f3XgUUpT0u7cR8Qem7Y5TmqO8NIMxi5taiq+xBxD
+lZMVbEeKDXHpKZh0l7w5mUqq3MGA1XClKdm5tQt7kywh9xQH0iCtnu21mg9IadkMwZU05pZOzvyb
+otag28oJ6TYn8vJkVtI4TLRYbQxVJttpcsZLRx+nu6EZqkNRNe1lZNlPwow1oopTdxq60dgVGHK5
+1enFCfEtPgCOVt3abIodFZ35obSoYuMZ8GLok7JtI5ChoOsC6IzcNx2uJvqth3jX9Cg9SxLaZ4vG
+SEIZKSthYInOPumsaN+YQXiTZ2K+wl1V2IA6icdmpRQHbSFewrBj+IxyrFxA9NxOUqAkNRPNfbma
+fSobqAh1qxnnENibbxqAj+aeAWwR1OZVNVe6jsmFCjO1aMMbRg7R5yhfSSzNwv2wmPbmLCxP9Erg
+OfHonHAXKvu6KPorNcqDexHg5s6Z9Hl1p4ENaawG+XWg5LLidbDmlZSsoiVme7I5g6d3bXLVAJ65
+zLjRPFlwXY5BZQ1HYStsM+Cv8NwDAmaqu56B1B25zcaNZ8GKHr3J4dIMWTcPqRVK0jaqwsxPLDdx
+DLJVkjO7sLM0uMVy8Eh9rHUGsREf7Br/i5v3sfgOtABDadSyuxTqBA+sD7bWEnUnHgqD4mJn0e5y
+BLfzzGw3J96n9V+DDO8Wjzi2N30qdH/gPtP5lpkXB4qNcfHHI72AdR/y+dSTfWkC1ONej/X1B6xV
+QhNWMFUuSF+gXWm98mA7XRCHZAPulW1jThdtWlWNj3MB/1mUdqq8QqBvHlugQOBu6yT8ViUQ4bMJ
+zcslHN/usNhN17WhBXc4AYmFtJUNqcZ0FMGoSMUXN1lTd1akkwMkH8bDuKDqsmoQlzFQs72SZ9/K
+ngXafpZUpmGVZMaizUiHXaIuL9lgqXe44p9MoA1kIJQEInXaJveqwLZVKkP0qE6QKkZZ29bBljgz
+7GxOnmUrmqNMcCyKYk63M0C4a7VuWy8rLOborOz5/jSQrUUaNR4p5fDYkwY9h31x05im6eETuCp5
+zcWof0GTqLi6E8CwVAGw1a4fyjn4vtQCPnKdBVsVzTYZwt4zwEp+aqb82rKmh4CSYMBAeXUMDbZW
+doVlU0GopBt4Kr6DwynI7zp3ccYMSlPowYbqBlR0tr4t67XJXov9JV2C7KzmjgzwEj/08JbhLqln
+3VqfDWFwnCzVZPhMas2o2blhl72aRKJeFZI5fkfMH/eFpV6XOcW2iK6PzqTdjjpxHqNRL+xRnJHm
+D1Fst/egL2e3LLoEQXcMyy2F1toGTQZuWVCwrpu453bjyqafpkPbdzzWQdG5ANfIAes9GoeVWte9
+1WcXk2if2a9OG6anBcTYrGB+KPiqotbeFcusf62UhCUOsGAYHmPZHcIBOWPsqaQOcZVcqZDeAXJL
+bkylVRRrLBKcrzQIVfW1PA2VhP3GMP5apQj7Ki21+hCmrFzGeCiOYWkYvs3qEAs1kedWljxIQodD
+hWPLijBUKhVQBD2j+FTn/jiVc3vMJbpxzlB1bxhazPxvihZ7D+fRPtfMbr/VRD5m3xAMgd2IPj+v
+tNezXSV2HnuB2reXkkkyRb5j6JzTbsTxVxrx9ELaE6Dp2ES8JOhVxiZEKRj2bVgTKQyjbNEvuS3x
+qmytim4Qr6MbVS0oEg1J/nAFlSxnS83BCatK4PZ+ykPHiySB4wTy8f0YgNTyRT6uf2GOlHTbinrI
+H5GIkBV0ySOyJS2HM4WqBLmF66s/TT0lBSenzrFH8rmTyNeEc+z4wq6JcxvtZjZksLMaFKtjCdPq
+IdcbA3o6QpO11zTsUNg4O6c4sqnD+I5XhtFwQB8txlE1xVUEkUYHszfO8Z4i+uYgtLykeBxmYbzH
+HDYOx6Cr7LMkDPy0sHYOj3XWGvIxtEVVn9TBmo098zBQIzKfo2eDYuHmcsYCz4NhcQo+5ZT8AO3x
+LWOw0ccfpNj30rFZHDHHkgvSHAzEZDjlQpHW5A5Fk/VHkVXGeJ1oltEfIoK/xS1rlyI/jzMwjy+a
+PkcI8fEYs5hK+3yYDwlJX/OKPmAaEOTAQjx3MZiCamE268Lrs7+Di8yeFri6frYoz2lAzNQJl3Zv
+kWjzo7awrmXCiPkrj4g+eowWM+wOzliyashah7sHyPw47MJbhwcKq5DS6MAIxnG8OvBJLH9uR7rN
+YQQw2mcUREIdaJfNIMiDUJORckDD+ZoaFiYHjLtBxJDFYXy8GSk5XvmcrFEwo+DD9BK1L0o/NqLl
+JWcAxtQ+c4A+mDRgX7YpuQKWvWhN40FHla2fpom1OFuWsiqqG3We5suAQchTg4IGEyDqneY7m9k7
+O9Kl9GVtlbdWKaed0LGWa+E9uLpmPPSzufCD5hAZOsZ4NmEQdTMuLJVpTqDN/SEn8uyCIYYGCb43
+SeoXbGWqwippjpc7SXgz3lSkWGN9D0XLnj+VCsgM17CJj8HHFaxb/Jp68RFgCy4g6Lt9t8A+zxMm
+kkldlThu0PusOzY7bfC5gc1kuKDJemtLRsIoI3cp0fLI3iP20VUCIqN54JFYQFCwCTryZ2W4aJhA
+VNNA4OqdqpyYtSVW225KHAKcEYWmJu2hrUXpsOqlcf6cUqjN0H3JV5P5OKb9JuZZ3Ox6mfSfMdQQ
+7KfbMNfOeHCMW5sxb0Kssg+sxto2ql5dVQWU3q9G6KSMromgpZ4jcDacMkvO4amZGyu/G2osWj4e
+3LD7pAj2jQ9RGOPFJb7a9sB5O/tUqXMcHsK5U81DQqf4PkXMKg+WGBikwcXqGp0bfRKXWzOns3wb
+IRdKX6cj+OxAWP2WTIW6EXpdPI5Ugt/TJ0u7RG0Ue7NXkiPrEZtRslq8xA40lElUBrGyKpHDt3ru
+0oInnSr7S7x9Gvv/wubUQNKdmc05eT3+6CxER8R+4g7UZw8NEKd4RA42AUjZPnG3Ru4qlg/zNlaM
+BeaBcGoN/2JNypcHUh3I1TG91IEDOYxunEtBCFdhp2OazXTEfDVgZh+NweYMU8ZhMH3HWtoT29D4
+lrGjoeD5AVcNS3OkLTK8smSLQRVxXYwSAvyGbSHLW0Il+hI01hPrrtWqxugT35qesMjPT/+l8v2T
+yodsgS72rzNsm7b6j//bUCX83+6eAer8ovb9/N0/5T6dURa2X4EKrEq8Hatr+K+CUO0PrhlJjgwb
+L80pCMh/+Yk16w8MakTgJJZi5lzrUOovuU/X/kAZ1DUHo7KFn8+y/p0km66/0/tM1UY+JMwghLFW
+R61juLd6XwZUfwicMfcSun1W0vcsn2Ol79qdCiGggU3GfAo8iWD2z2ZruUhZjZruCFST53tSFgmP
+mLDHK9o5RuhxrBBeLJ7Ee4Li0VXZWQCAVcRpDLgDNzRYoN33qk5zfLfJuotYnIkd65jPa5Im05mC
+CBAEO0GIJqdWvKieuwg3HlKFYYybGEPOYQ5U+J2zpYibVhND6GHxD19A4mPUK6o2Dj2DDChTJnVp
+HztI+NPJWurxU6uykHAxRmFmCCbLmLc99PNnxYqg65qmXeJ8yhxm3wL3B6Owkp3inh3lkFxxFAjP
+M/oJLLCxSQjjTTk2u0uktyaEtqar+p2+LHg1XeDrWnJPEQ/bG8zR1rlwltTBMhQ43ZdpJdjCPUvy
+rSJKZWFA1Laalnu6UhaNPwJfnHeJqs6Nb49p9KSnxAPykb/Ilk4xMEnPRpZvOlyIpyVPzbulcJi7
+a1qpIoEmRkFvjWLi+4w7A1Z+tm5EAlNHDxB1eafiXvmMmqYu/J3MeZJ6nL3AKUHuc5Ef8435yrPr
+sRh7zDyx1axfICkcIOMwuRK4+ehDvbgWbRvcdh1gvHlI5bMjU/15DX8srjZhydx2ZTuT8JsGdLmu
+JhjNWtAavqiaHZJliUUbEeVeUXxgSMPDWGtlcgXfQf8GFTAAgS4Mshtxh90UR4McTfaVTZSRi14R
+fxh0Malq9Sjs7RS1w1OkV4CpMfOAy4PWFt/Er7TAlh0QTe9Kpzx09IY3YMEHqhGgiqEZNIw3AYeu
+68+5sIqTzhaO1otXEGFRd+NtAkOZIWtuaF8w0XPTF1XHhxA2Ge1SSsnJgc9oJRtWnU74Lwpiau8r
+5MAbA2QYX4O9bt5aNcFRb7ddQ7wORwg4dnPlJrZFrKr4zqDFrnlR/sWg/GIXiJ6OnTAsqMMILQ2K
+7GwBVXe1Zm1RqSUlYNgSe9UhBoi8jC07FZ3fa41d+oodm0+SZGWyS/SRvUQdiWwqPBS3Kjywel8A
+jNddz4xuGcd4QwPP8GPse9qu86XRHk3mcrSJsIX+UbWOZm0STG5wuxGsniuTNJo7VAXnl4Y/7rq0
+wLa7FZjSSwV7puWOUbiQpsyGpQSKRXWLC9LRPgdOzeM5zPBbgb+wxTdSauVa4FFod1ZtpHc2mht8
+njl66Vr62C5YoFgPdc2SjVmsOZIxKrv2pSeq+YyxrSZrOdjy0QEm3m9Q3AvOtTk1dRdTvmbA6yzi
+l7pVicbXkN1bd45LywEVlrAWbpYg+aTVVXdc7JKb2JtHwN9M4f6p84+bPL5ExjDkkqX6eqd9MzlJ
+EKuSueGQzUBvEavzHHMutHNEYR8i9+8P9m68yI0fooxgKuw4DOOJo/x62zayKsXsLtioR/DroYl8
+J0Pc+XmdDd7vj7SOnd5OhP7pUO8mQk5Aoc1iEliIIYK3G1YfDCEI6m3qQKEQgMCV+W3dJGw7Ky0O
+TR/F3hha1cqhteyHBKvH5vevaA1XvxlR/XxBEkGKPDe7F7m+4DcfdAQ5DGnSxOg81/3BUjP8PVZd
++L8/yt98nTxndRwNKl/q69zv7VEoIaACoMXlG7e0JE1E+LgJlZ1yrUWtuHLsrj7k7dx98N7WceIv
+b44HJEsFQQE4KzfCRu/eXAdUy+GxirzuQ1Jw6SnbPC7u10/nyL1u/We0DZcp0Qff8d+8118Oynjx
+7Xu1rQT9N+Ogtvm5x5lI5VSlZ55ZYLXQ7Q8O9v7Uff8O32Xn2dCEHcwccK+FCisowL4PmOU44FT5
+4IrUPnpf60t5c6bkbUFz2Pph1hvKArzaRW90S8/2pf+8e2r9T6MbfnDavJ/Fm+/f3rsrkyaIjETC
+6xcYeajkHm5Ct/AAOX90pPVbeXsdvD/SuwvTBmXI0OD13Zm+6o3H1n2AdHe1eNanxjV/+t3+tcng
+o8O9MxkYBkORbD3c7L0sW3WneukG+/s5PtC+s/vwu3t/23n/7tYL5c1350wkZdBjWnf0Xrga3K+F
+e/zh3T38/ipfX/S//gyxnP16FGEmSaasR1m2rC48tn1e4X34Tf3+vUh1DfW9eS9s1zVBWVHrXtab
+l9S7/27unh/ujA9O94/ey/oq3hxlwtMOOIijiJtgV0MFekCRPQYf3aHesS/eneBSfXezcJjIiWb9
+yJQ9yqjXeqH71bq0ju1PP8m/POH0jw707kaBFgJzev3U9B2qHLdCDF3nmutI80vP3BRu454a99i7
+8AQff39aaL+/SbF1+/WznPUizdr1ZMeUt0Wd8u9zb3G/By7tSm65JQn80cf6+3uVfL8RC7spluwL
+Wtfg1m+6gqtr2PPQ9ZjaeVCYN6EPH9776GGqvQuU/tPX+e4uYgmtlyDHWz7XLw+FH3uF++14/fzB
+57ne9X53nb27eYxAvBW7Xt/dnX5sH8pzfTRegmv8UCiJ1fN8T7XclXFt3n9w3N8/TuXaWPH2mkhs
+MkZdy3EHP/Kyq/Iy8K0toxnvE1Zz/8fozpxFqvvjo9vXB8d9fUq8uRYzIm2DmnLcbov3zhs35c64
+hMf+0Vnzd8fRMMGCwzGtFY3z6/trUzunQIDjICltNN6j4TscUXjOKfdwYN+019gWdxT8XTiHDz7b
+v7urvTm2+e7eGdfJTBZqfY8+rp+HbEtL0nb2kfYP+j74uWr4H7/cDtrXaPRXyiWaOIy6d//5v/7T
+2611gqZvvgT/uXv+M6l+fs6//8//vivj//g/7S9y089f+VNuEuYfWA01ZhPOT1mJ0+FPuck0/oBZ
+BGgHp5jUmVNyhf5/vUn/w8BTrWMuoP1Eh77zD71Jc/Bb28Zq66b0RSNx8e/oTTby1C83AsHcBd8b
+NjchNVzc9rsTVhORTeQolF5klbhb4MqBDRy7ifCRJcfgPBX95JBrKjLKS9eq6k1AG/aPWA6k8NqV
+SKgGQCV3pkmXyml6hRaqdHcmx5SwS+fZ4GmpmVTkkt8wseyMm/AVfkjh9OAcA7I8VGvWnkmyeddX
+SY1NCczRRu8NKEcZBmU7oCcQ70nrQc/4RkULsKSVvDhTJnIUS9J+Xzqhfk0UPfZKwNIbezIqIBXI
+84tmRnQGTLLbkXvumBBBenSEGPzJJFpT/qRBwkxVjt0KiURagRc5vrIjh1eOJFA6mJKMEnC+ppJP
+xctiXdlImUS6W60wStl3tvM1eGVUirEam418ZVcOCIpMLqhRa28VY+VbJq+syxHCPEUVFP6Bu6lX
+IOaSEB/zQphtj7lqQsycX+mZTp3IU93ThzK80jXTFbQpZg1pw3rlbxYrirN4pXICCsdCsfykdeKy
+DeHD8KI3QiF37aOoM794bf1NVuRnOgtm9ckrCVQs8OBdxpvKKaRhmEEwggfD+Lw25XWarjxRKEN6
+cTeYxrhjMqSsAbTyxhotaOLmQQLteyQew+Kzk4E3MGiBeguXsZ50q31mBPqpaRH8+1ltsE0ZNcaP
+IFK8csWgFtmkoU0AqFfI8LoUjHxlcMdJuLJT4yz5ES3RIRfdDfk1G58zznAGRG4HeLV6RbDSkk4g
+d5yqT07SfLPypEtPYwDg2DNyYgQeJc7Oznmlu+qvpFcjKYNiU70SYOk/zG6jVy6sWBGxgxrxbivM
+Ccc6db4qfLLhFmsiXFltRcxmfRe+TK/c2c6oExi0TFvK1MCXX2ybwdwXkGqjYqZwvkhe9AaTUCgX
+2i2J4vdmdGo66yJjTejZdEofiGfetysJt4sjAqfyR9Mmtxm+u9Oo2T+g7QJzMInG6xlLRzKS9Rx6
+QG59rDn3uN1OrRo8T7a9yRRzx9SC/uS69PHZZRs1sGu3j+Ei2rg4vKGNLmzGcYpI4UTjSit2i6Hr
+5pYmBOdUr0RgG6df7uOFO8PXBHhrPPQivcqU8ZIzHldapa9wYZKTMYx18H4U9TrJtQRD7CTGM5x3
+wMRBnia3SigfJzkV6U6EIIwJYBg/sleucYYuwkljyK0+G085nnrO0RWDzCSw/EZsdEgPU1fH0TbX
+VWpoHXLxZ6RLzIMNL6S5MJa4By4JRq3Ka+VAZEuu83E6lQ9TTpvFpLeDM94yyANl1SM3vqCI0S2j
+zaEwSYayYgVYY9ROsxzgus7URiYENbzczqlsAIWjRsdRAY/VXSiRIMhLo96cnGfsdWJHEZ5wTgEc
+Nr44U2sYPFYQ4RGtYZZRaU0nBkEITYfP/MqLBoFE55QaslQl+sSM3IIqbdSvgGmq+6BNp6/oaTg/
+0z0qXFo9jyuhGrfFdD+TM502PdbUlC+uxpUJ0AeyNdYpzUWIHO9bq+JfxSsGW31FYofQnKG0disq
+u4wDHKohY8gVob3itMtw0sKD9ZOznYDBSDbR7MT1znyFcQuBr4EKVkwTNvSB/lAmK7o7ZdJZXxk/
+md7Gyvf+aXhVcfas44kVAT6GFWYDYvmgwQ0l6rpd2zhMhh3Pqux8qyrEDhEpL7NqVj1ScnKHTTnE
+ktz3T0OUXWlq/hhE2XU1lhdZ2Pw/9s4rR3IkyrIrYoPayF8n3T20SB35Q6Sk1qQZye3MUmZjcxjV
+PR3B9A5H1nejgEKhCpXmVCbeu/dcmEe5uk/Mgbbego1X0VdA1zb9cKPFfWzHRaPnZ7cYplvygnTj
+l4fM/ki8D66KOlqQjeXZVx388VpmjPHggporOvOhidSHKSGyMy2og/rDkF7m+CgeaopaRy1F6DXr
+rhfSpb1Lk248ellpBtRh4WchFwpZAxwItHynSTcgHY3gcTSRL3DhlF4gxwKfOGq+I4IcOtS5jfsX
+KNyNkZLIEkf+o5GQnjrZowxTfsRlH5VfqgZJRw+E/CotPbU322Y8Ln6ibtAPTUfPKs3j6MzfMtV+
+aisjDtC03PUGToV21tsrFSv9fU6dFt1uEmKC+ljVhX5FTsxygYzcusasyJwbxenBdVDlufrAcidw
+iSS84gej934bo3etWxmqL34KKamW9XWJkTAzyXGwWzQjdJuk/OgPIKaniEuP3M7dpSaiwAIl8GOD
+EufgAcPfL2kWLon2A3SJQFLpwg5Bd36X2ObXHpwDOQ+Rd90hbqf/YDl3PQDV67TUx13RgJtSqZsF
+ws3KC6p+GeLyNO3fQ3fIHkZpmz9As2efYiEBnxloy7s9mgP7Hcunc5GU5nT3/D3gKXfVXvJeP9m5
+hn9aGHp3MMrRJeYIyOpFR3vnC9AXt9/pE4Q5PuVlOIxqWAUo2DiesqQdrovnWF8VV4g3ocfN7w03
+rj5Bhi2/dLLDB9V05ZPuSJpf3jR5OK0165GVAyBCkgztL96hQl0h/ybJpNbHTxaggp9yaGcBGnxN
+IbaZcXlljfgReqPxQBW3Au5eAtDz1/jiFRjQB/Oy/CJcWn/wFhdAjNlqx26atVv0kRlpAXHTvF+b
+zPneTgwL4Xls4LdFPjPsseJaiOuYrAgxYdnCZpv3rvYJHeVPF6PQQ+JO0fhRa7vaJMEmKWJtLxOg
+u+mCDnY/D8BDYBPHtbmKQ3TSe7MkfR8x8eJRGQegz1N12VpoqwOYJvq7ibTK73A6igOLnRmO1agT
+VqDG8iPYaUOEvTUP78vEh/QukTxjHuji9qIdAUmmXT6PAEE84wnlYAkCPC5A8vhwhUVUdndDrZvI
+wqcGpobVtd915jraRfU8ZPxOOQ8HiVjtUeJsu2Y3pJfhLCYHQXaqTJpVi9ntBDKA77mQaXGJuCWK
+ICuaScfO45nNXEuTCbPPCewBQh7HP5Wns2FC2QICHR89ivdCOMZVBzyQwrZkWgYlk9LzQ2SOC8wM
+hVZYJNGVokwfC3P54fTJl4UzYSDt8aqQxQW6YO7ZAuzi0sqHNsSEEn2zoYiHmuNfu/ryYCVsp3QP
+XaFQ30leA0eDXEznu0JWzQYHGJ5+NzoEhq4kpDUFoWDTdszZZh40mTG//yfUPeetP9SA2xFzaYM6
+AAllK1N364YO+iomLxsYeXFFPcPb5x3uLJtVPujj6qEHnIYCjGwt1U9WWLeJj7A/BsIIKWg3sK1H
+1986LZ82bAnNrWg1VwjRkNvKJfCntJoCzbRrRa26hEyag/G4Aa/XZp+6HDTDI7kt4EIzLwN97NYk
+FU6WB+Xa4qTKaZ9oW1pDJQBKgdq4qtE2DTZJGw59GxCbZf0zS9CFt162r1oQrGU9is9jXApsmQJ2
+8gMg0fWQYOG+u/DNuiS3einbz1IqwhxBJ2o/iangZsxVuQgOE4leH9oE2X3YYq37OY/yk5O54pK5
+175v/cV9AG/jO9/TfLTNa+Qp42fbTptjL+vhGz4ctz3kjBbtbJgB9wlrzZMJBe8O9U8nkJBHd4gR
+l4iPuam1K/ibebK3PSytwUKnKlrhBN54C64S/AeJZSU1EM/rzCP88J6gRXAQzifEPLCxiUov/BuU
+idNyHJJZlyD19JbwKuEwV9WVBErgmw190Q5bS+Oovjv2bkLnGNR3rR3KwbQ+aihpjxY9+N0aDqDd
+ZSja9hU5SxDwzazpb42KW3CRT14ZiHpwu+9oHWsyYJukDzPL6VWAOMBq96Y29R2bs6W+J5RN4C4v
+rR79Va7Plz6qaZqhyDVz+qsGOEaQBjarrYmwao/cXhFy5FiNvGvEAiRx7GcWspgEqn7N3i3R+ixB
+wVmXFZ9NOaGVtUkWB9EEzYU3lamHhwHgehCRooOLMcIDtLMACUETAl0C1wbFls0LaCTl6gh4lwkT
+ICHUrAGzJrKl5IbitnfJF16lv2uZxs5t3Gs1723k1geymk1OF3huWnEovLl6Z9P6f9cLk/yLHjY8
+NvbPPe/aI2mbBiiiiCOnsmuL046psqNq8ssoZU99bUSjP0Ai0ogS4NKzUJcG8W+aJIxJJaCEdOBI
+90PDbYIHrwfuJOJ3jehpmfrVRamNAHWN6clrq6/kJUowkFJ74rht/RoJz0nva76n5DHPc8giQiP9
+OutLQtTj616VpDrXBh9KFj8sbY2JoP1QzBbS/kZcefpA+TJvfbRLWhZmph7wCEk+SCYFlrE6AAFo
+d8pA84TKzdzJYnxXUSIMF7Mf4D3MTjC2vbvDqIS3oYwfG1Tau6TBgq11/sh+b+ryx9kvr70yuiKY
+CxGrN0xsHmOiHgLCT7Fs2b+QQfjePS+onEkq8PE24KHjrI+iw8Jv4KNMLswIKgtO6Xp8ZF0wQBbg
+wLuM4OdphKtOGEcEKUvOhyQ2qg+I1pY2HBMcLhyU2r6+zJ5nwhmFiBnaYHW8A8tC5V3k1hL/nIXT
+5wGhPgXxZrRwDxpEkwQOpgA2j3KMXbPSXfPJ8xNnwMETT98V/7reoXqx4ncYwBHj9lHlHQVMUvfQ
+uiugTHpGcdH5kl2j55XGHsNHnDwMBdbWgJzDMbm2lXCTz+kA7inV0gtowxFfY5J/4mF55gcpRFqG
+7kSHc0esZfLe0H081X1fGp/bpGF4kCkpkpNjmtnLStmld5YibSsiI/tYDrBQQ8ShTIi8BSs81wPh
+Q5Ot6gLmCDg43ti49rc4H1ACpYuHIQFCzT7mIDYFTSkHQKd9Zf9AUqMhinPhUL3X/WSYbjXO4JdK
+uR2hB2l6JFwTrXyZrWESz1Wz/y0mvuBaIjh6W8R2C4i9Sv7v/3klX/vP/+u/6okGJHbo57rl2Pzt
+uWj4X/I1SOxIomzd0g0so+6qUfv/9cT/0B3TJCvC9g2oD6BmX9QT9f+Ah+vAcPf5gS44y7+qJ76u
+JpI4bdi4n931zwEJsS1/m9nAL69JSOkyrVsCMFjpl3aZSzsEUmc/tLnEEpl7yVDB9iHd55+i9Kua
+9EuT97Z5so7vrFV34aL8cMRzA/pFmd8ytdxWA1RgUGUP1DzzDwaH4VDaHQg7RE7O+9wqE9KFmFWH
+gwnWXawBU+1H4myr5u/6f//8GKomZGH6Bvd2U483C84ryNxggLZsUchNGr4rd9YgKE3IheYov+29
+Txhwk6sXNeiHf7o4L+/C2od70dv5Z1xc5w6NTZNMlk1DUCf83eE8iZlmpl0XDJQWl6MvDWIO3x5o
+bbptB8KGyVtlWaZDBZn//uJul1WVQVSoiBnqx+ijnDOLU4ThA7ZJ7VEc/36wVX251uzQYsAZeTXY
+YJuwFwYIZDAx9auGGMA7VQktlG6tznSpNs2x9QbS72MYh80x5u/1Br+4LiOyHSR4XJcgAfNnNhjz
+R28Q8phXRXGRZVh///rSXAr5tuBDhMmibxrFhU022Dgzg7u18EItoZBKlWQEyebZf//IvJWCwFSB
+kMY3N+9G6gK56IcMIcts42u2p3EkiRH24iU7lv4vNTvrjUTIyoWBjdHpVmwuDCW4W8QkLe7AOWVB
+VCc9Sr12UoCQvN78OSAf148t0pt/RNH/4zywaWo8j0vYCEOCVnBBybx+gNiNjMK0BOOqqh93E765
+O3PWy6Cr0uSjgj5+48lEu//rx4hsGD2eYO/PP2w+Bykkmjcq/jte05modL5y0pRQ3wn2Tm8PdeIN
+pf1iO2hKmPChFLy+QHbUo5DATnZRv7B1HhfzOLvSuxi7KAtVFWv/JKX8jzf0xJfOwoG2i7kMrvJ2
+vFaJGC8CXDFil91LU+O4X8ZO/W7x6Fe8fWknZi+PA5Slcw9pdG0BQLbbmpDzIzbLOATv7I4gMXij
+yeFfjAJTwTEdNvb+th+s09BB+MtsAgi+RTmne9ckP6jbt0c5edtcnWASBzudKTZfW4+sqiMvnVEK
+ZxIBmq9ivrAhHXPkdzy9PTNFnnorkI/bSN4N1lmW8lfzlk6WUkfBbH0Bh/dyWB7LmiQ9t6kAtnAi
+P/OgTo0G/8LzIWfAvrY2ozVVn7kWIXooBtr4qko769Bz4r/Up6m5XtQynrm6Ey8GMzJfMy1VxnQ2
+op1cmPAoNVwcSjYNhMBEN2UY10Z0Tn134qkxBLHxHpJ/G2Xn69s4NbaRkBsB61giQQ7pD4yhyGuP
+6k8ade/ffkVO3EVuom2Y7uouMPzNKxJNxlQRhIhNjlMHdkfdb39UnQ16OiIu0N4V0k7+fnZkxead
+R7DKTtFeZ88Xy9tSe0Rgwj/eZTKNyJzjHLZiE6EVaXs7ohI0TYYK377MU/fUYFu4bjLpa69E9pdj
+JkMGI4oUlZ3oiyuTQuO+KMFv57Z5Tumx/kmbTQnL93+PtGlou41OcorLDfXpB1GJp7L9ifl6KPa0
+soxuNwBSeQdIqTL2mZLOuZfnxNLjCyYvkvMcLI3P/fYXNxcKklckvQH4cFoIe54d7WHBTBa2Tt/u
+VzMBlPU0+vz23T05qLtOM3weOEc2T7QrfUWoNF7LXnFTU7/IP5az+zFxqw6PcWsdFFzkM2Ou93F7
+n1kImEHXA8efShdvqfvMgiRVVi19KYCtfjMVn+coyX7UpVV+dUod3rimd5fwB8ozk8+fT5m3aGXZ
+UVHl6LKdDHQix+CTQzofxWQ8Yjaed0XSxdAY2vF28bRo30dtf0uc6pmV8M9ZaH19+XIc1kLkFJut
+BVQKOG0TITXQEqz79VC/z6zMfHz7gf45K1iCvQRiZ5A//OP6K168RVIQ/JSasOfYYCdfyWySSYiF
+o64OdjTVX4fRic8owv68oQzjm8wGLmuis530Evo8iU69dVcO1BowGFXOgw8vEh9KbqcHx8LLI6oY
++GzURFl7Zno4Nfrzrt5YxfNIpzbXq1FZQpKJL7ppsJUIrcGfB48kUQEMudQgtSZaVEj6LWVe1WrG
+r7fv95/Tk8Waoq+rJgsZh8fX47sAadk2M2mYxK3A4LS+5Y2tjiauy8Nfj4S9yySeYh2Qg/zrkThL
+mETysGoSeieqsFo8LBVY+qEzudKZkzM39s+v1OI9WiFS7Nso6m9mQwJB82waaKi7pBb8ZEHBNp/l
+wG0jYz8MVX2My7l9ahSUairQ9qe3L3a9ba/nCEZ38biyGReQ0DaL2zC6APV7Rk/w6FwbjavvSDww
+//qTXEdhf8pGWPfR6L++pXwhXkoGBztGpflAnew7GJHa5b+4FM9cv3rhmgTvvh6kh2OKhIFBXLWA
+DxirCMc1CZLJmYntxJfv8WYgIFwD7dg0vh4HVplTkglKwIOObsFv3ezoG5jzOl9MVx4V7b/eolre
+apDxeEB4b8Xmze8pA9bwLcio0uhIF9Ir7pxYqj1KBPvh7Vt46l30XIdUQDA5zDabSysJQeb8hfJC
+CNVf6hnRlBQXytCcVXEJlUG/aq3BeXS6rHmCL3VO9X1ijmFbxy3F0QGw0NvMMU6RS7oIbMajlUC2
+a3EGP4DzgX2oT6L7YJqag3XdTtsPBLfO3ZmLX//0zaeAXm+ttFmWR51tMzrOwgYmK4QTg8r/Ew8j
+BZZv8jEGI6KdHlVUnr+LtYms1bfv+ompjYF9+Er4VCkObl7cgX56G0sOBbNB41bjF15KD0aAIcb8
+/dtDIV/cXOWaqgMqln3PWoNzrO2nCFGU728EAN0v+ExbGsPklxg+xYx0NlvzmAirQsBnGgrglDfE
+w8HLCyjVveUj7HPm3HgSg1dXATKCejmkZuv9quZmroLMURPtf7Rbl0W8nmZkmZBZJXV4/a4BJGKX
+gljsdvOYFlEgdIVsZ5nkDCF7pJGjdXRC9iVn22zXy8T5DY4ro5BuNKW48PqxvXWVKUSIWcwh4xE5
+009ESWDs6HpOoJhaJTXwlA5/LM2D6VvrpsUP3ap6APd+r6/9tWnJg7LvIaEao2l5GONsDflt7Kmb
+pJxScW0IPW53nQllfVVTLcfOJb0gKDQgJ6ApdDPeoy9p3hkZvZSdnLv4/UwvGyEkl/l9GGzLZ/op
+yD1cRlIqCBtziRCjPTMGFR2vr3acFT6JQ7YLWB0015VezKg/bH+obha3QoJExti0h8GGd0pjCXBw
+MAISSaw8XXOHB8enWgitNRmR+4RTq430j+O6LcLeHocrfXAggguOCFpAFJh6HDiEDcEkx5aECa+o
+zB35GrQxhJnX33XANfAEjaFsDiyw0RBgC4UvgDXW1ndmWU2PhZCCyLfRz3EfIXpoQpXWTR0oOp2g
+dX0ijeAADo9JEWl6YM7mcJ02bP3Z21vMI21JxFlbWGYTkpZhgn+lXfShpI9uUoBuGhKAtP5LV4vh
+s41sDVnjmGZT6EWrQtJKIuNHJhPlhFLSh957zoRHE9EG+ceQ5rrpkLk1gL+cJueDdA3UQCTvYcUi
+3AJKKj0gNkdYfvM+TARW0nAyqmmGKjL3xGw7a8u/ovwEgqDtnJi0wkV7SuocPgZ2UtLdSSJaiG8f
+YheOVVm7A3T5Zhn37FkBhdVkeXz2gAdlIakxpM54ohhHZJUNklm7aL3HsrWTHhy31n6NGoru5JX3
+y12+JrKSKY+0ZGcq4UD48CP/Q+n3+G0t6djIohY6uih9tfbam9GJkijsK4J/U9W2gQ86ec2rmfsP
+UBMlDnR3Gn8ga2sBy8Ec/7qUIvnA28BtQHCASiLTpy+ODziOJLreN1eClG1e5gQQIHxIJJn3yJW6
+/puKLF39xixokZvnOopuX1fr5Rq+rJowIiekOMqqN/QvpR3N3/qmq2JiVJqkgfpGVui7BshIfqyc
+pV8pgz3HHah4OTYCI6q7oxIIJz8ZCF+1sC7cqLhqy2meLqTTpNa1NBG4I12YO5KLFK7gL7Gu0oek
+Eqh0kROgS4XUQmzp2OneZ4XP39jbsiSncnH1YrnQqLbpRLt04t4Ss+PeD1llfGibBBUJhMY6uYgc
+2D1hN05md0tcIr7uGI96vifsO6kfhoqgkZA02vbnMA2lFerZUnB60bzR+tXyFpHgVzjR/HVAHhBR
+sUzmNU0Cve4uQ9rsX6e20X+b+ffqPpqp6NxHTUHrFZKyNTRM69GaCl05bpm9H4lKBOxMj7q4zJgB
+BTGOGO+ObVWkt9OwTNjvS3act8pxi4HAF9tWQTa2+mdtljLa+dSNaZ/zgrcQqJZoONKQpb9OPDgC
+MS1vtfvBgU69xzhMmpc3pBOuM5UieB0zDdDNooNADLtlHqJPeKsFQeRubTy0TdOiQeqlOmbAHIbA
+ElpyI0viig4woZEgEwHapk8tENPkzgeosfA/Zl6zJxlJWJD9cjqnirwsdT9GkGi+wVizrL2npy4e
+19Ku6oAw3VG7GbLZ/R3B+kBUnPZrNnYOie1Ax2oSj+RYp/21O+QFoneXZ38YfVP9thEFk2ldQicM
+8zkaeh5IJDJSEY3sh77IJkWBrCPrMpjYvIA4JNrT5MUpHfmK1gjUdNGKaW2aWSNLYvLfmYSqRztT
+LhZguY5eDehDfUpCp5F6CgJ/aKGTF6aEqVT6JW16eh+gGZeifBKgE5gbsnZkdzLUXXGcZlMO4UDf
+/nOlUeWDYcQlBVHv6N/FsPqUUgI1LrtoIVPeiQwNvbqf/SJlcv7sxiq+dSMzuSertDyYhZ/fGwVE
+6ku3HFsVVL3FMxLFbC6HvkYOGZRgFoc7UaIpuazsOTNR8RFnTAFjnvXDZKpGBoCURtDXToXVtzFd
+pAQGzLEiXMjARDhJmEV92Zr5MgdTV/hpYDqlM+8LC7jCXanLEq3GyAJKSH3qib1rD8uV6mWeX4iJ
+TDpEaTgcd32kxQVd6xS17VCQABsS/m5F+7rUcP13xZQWwK1ryzuOnkvCbE8AJD8kJ2bgkjw+IvQq
+1Dcx1K0GNhbfK6p7mv5Ne0lpw36vknQQe5tse95Ge1lozBNlZO56h8GCwcdqjZgwxQgFToTE0LmK
+nBAN/QhTA4Qibim6h3co39hnNHqLOi13yUtm9bWXX1GmGbfk/xSCQzW/Dg0NgiuD76K7ob1e3Pd9
+TCQpTvwmJ3ahZRmTk140e9Zha97NcwTcG9Fr87nOdPOx9Ga2GYmW9u+UhSQJKK2Did6yUnijaRxb
+YzDao/Wb3ofA14UkmBRXpJEAJj2rSIAC9hWBF+6kE4xsF/rONtrp0ZZ9kR8kaLN8JxMzFYEmOfbz
+scvpBneAblDJUvHvxBbJtwy2IWRHPizoC2VBW6OIva7aM3U52cFmakfURHtzPLIGZ48L7FBImYPr
+3gsH9FrYyJV2UDqN/zXn86RJggz5E2EhHSaLWPaALodWPYAKJGY48YbphtAUGqhVkyIZK73IeVCo
+Jm9AJeZf1KjEdzRODiltpO098fYilE0dr7qaUJKxVjpjmwPuM4nrThdtJt0INbgF37et75TR+Xfu
+FKPA55hefO2aUnG/hq7/gSJRb/ejZwoSsKVbBZMAvBsUOj9mN+WF/E10X/exasYKdXtnQ+q1oh7Y
+UzGUKzBE2kDYtPgHOFikjqrho0EhGfVGkLW6vCUsJSEuG/wIWs0I7lQXD8oNSzYR841lWOnlWKa9
+DJs5UQpAVQr30Jfw9fZN4bYf+sWz5EWDwhUgbM98vxsbDtl30yISdl6IGftAjdQo0TXmZJI4ZVy1
+bMMS4lT1qkFtpy1Zt+xMBLqQmoBgEI/GaVNGOZBabjoJuITTsFeQxKAB7rL2UZMAZ1a08JuAzi6n
+Fa1H4kc6TsfWc7EXRFzUdot3S7egLdd0aS57CSrHuqBd1H3pPWbusIoQuoSaZhbWwUNwvACd6HQ/
+LCQbBtYMmX3TiLyF2Zzn6bBfPGDM1BVH/tjaR8Mj6kzzV0LuvAS2sdi/Y4Xucq9KcH93poXVhT14
+SlxxPCcFGBeDuG6Umwm6SW2eEj3Uloo/XVYWQh8miCk9Cpa+j4jm/YUIazYduHCS2row5i6z8UoM
+7HLqNkVI6EZy8kHPgEoEOtBFnxJYn23AFqz8WM+yYOsprEW7JjvJdUIsVe27iNz4BU8LuInArlZZ
+FWtFvByG3qyacAIBdEPygt3sESw3qOzcTuiBZwOq37XGMqxcEq/1rjw/9X6xv+OLk5HJfnzQ/eaD
+RhGHDGFDFw/KQlS20wm8eI9HwiXSzxX977yUvr3TUoEiKBtIvQm6fiasSM+T5Xc2Z/5VNRkg+7x6
+st7lvVxul7FQn+bGaWZmL6288JYyRkE04N8K3NLP0ABFpneATuSal9KI/euphvS5c9Ew/YYd0yTB
+AhRzChx44/hBQN1nAasmBwR0RXESaD61R/b9DmShmC3oTwdQoWTKy1N0ayIiKJSwoKwLWM4QWlWi
+QGZK7vZK4fZ6/k2NuxFWa7pK5aXC8JRXLfJdyqi8YhG/fE8eQuKCyJmwSzQOGMF6Re0GudJnFSil
+6bwKS2Y9eV1Tw0li0uPP1hCS70xjiVfFLBGd+24a0V2qDDWtiB1eaJiAaIMzbdV/VeM4fdf7joFj
+H+zGoctSXstcY8VhI2mrD2qBT/dgeTF5lLWf6EithxkFrDsiQ60qjHShAJQ3MOMlruB00Ktf3Srs
+U4XPD6QSyElFUmXFjGU+i5LLPrrPEGR/1KeKk0sNCp0jg/AzjKwgWkh9KCaux4rB3wUVyRYUElr1
+K9PX+1g7UzLs+1hHsaYAQNpBZnccdNhXJY9oiBeD3T5I8B35guqXHtv8SZpHfNJlXSo9vqwynxGs
+ZcBJxmrn33SlKsUNDhouh32ufwOWiv+9jxSusrQgD2LP1nr9DgflyINVLt5hjuoGam1jGL9dkjO/
+v1132FR2bFQTpNPg1YTQhenW39TkHQJKhsYSJV+bzRkJ7Gg2XugxyeDUz+HiIVXiQGbDwJuKptu9
+PfhzbfhFZeef0ddSrg2iH9fmprLjkpfbdkifyW60NWZDssM4DJnsi71PbQOwpB1t8KxDHe8L7khY
+Zd58rKBM7U0VQ2WZne6zZvEOnfldazntrd+13rUXPYRKb12HanpFMWNukz1J2FgiS7+a9sCxfqdI
+9G3eby3Vd52gwk7qXbXPEezuupK82whU55e3f9GmEvXPjVo5OThNV4Xa5gcBqjbYOGWUvksOyYjO
+FZY2VgPagH3t1mcq35tS1PNolDR5IaijAo5Zb8+Ly28UKXe5Af9yzhzvu52CF9tFqlSILCdn+h7l
+tXmmdHvqNRRoXSjuuasQbVNKJZC1J6DOY4PZVuaDC4xwN0aGt48HLACz1EkRJR4TvKt7Rnjy58AU
+FC3su7yBjL9Vvc2u5hSigf0zVmQyUE6db2c0RdcT8vRDN7UDtMu2fUecUHymuLgp6XKTX4+8eaRe
+TQ6MXtEE7ORMcmcNPNW/YyKY7sHEpmvw38Ji2xpO2nws7c6UlzLp0Rq//WJt2gz//AoUjs7quReY
+qV8/agjvNRtuvsCCNXSFJpv3q/z+8u1R/nyhuFbfQlZhuojC9M3jZejU8lu+J0sZw5VjsIqj973y
+WqXeC8sUZ96mP28tzU1eI9S+gp65tanbMgE7frsmsC3816/auCZq5O14FLkik0MDaYOBkjXLGcYQ
+097f5uWsT1YwpwE9Ml0m1s3VejZVo1Lj8+kGjq/DFPXBaDFR4Zq8+Pv7yl7aQMyGUgyFx+un1/h5
+103EEu4iNNyXRRYbIExUTGFBaJyfu1yIu38xInhFHZLU6q7f3FoDkmLLCbci1lxTPyJCeoHeZmjL
+HTyXD100e2cUF6deUJQkNHVW8S7Z868vUSGQwS8QMxV3I8u6vzQ9rkLRy+rM93hyINR20Chtm6e2
+6S6SZ0bikOReLrhj2LyRF2pORBn+/f2jW2sgIkQUZmwhPUp4w0KuNBqHMXFWAKG/XGCI7/Y4eOuH
+HrfjmebJnysHYDGEOMgJ2T7QIX59/9yaAursra+IIf1HVS2tRa5VLLT9WJTwqt6+vE2r5nk6Idpm
+tQDYwmZOfT0aQY3FiJCKV5/0g28phihKZDnHogU2f1+xP2KPJj+9PeiJOZzVygBsxgRu0SB+PegS
+eYvl1AS7e2mSHHjEEckVc7Qjhu0AKt7DOmPZR9ua4RO+PfL6fb3eJ9j4YejVIOVgbrM3cziV0Trx
+Wr70Phq9J9PIQVu2oyEvuoXKWWwl1f7tAU+8pOuMhlKNtiOPdP1BL1bmXvmDYydUP0trTaRXlnMY
+Sek985KeeIrCBCDl0nf2kF9vNoX+HMWrbWMVauTGxHYZ+v/Rgu2JJ3yYox9EXjvLLjHGzD9zfSdH
+Zh2ySQZmNRKbDWHkEc09II4mxk7qX3qAnPgE8yi9nxEGfWdlwe+IX1tGZybSE18Jw+nseGj1ccWb
+B9nRoRDDyLhl3kxX5P7KvUvs+aOPC+3MhHbiEhFZWci5mMxg/m1Wh7bQzUURH7GraZERmKFZx8kh
+DWJHTLv52BAS9yU3/HPamxMX+NwZR02JDtxcszBfvjhOU42+L/lGUp5dqHeYy8mkiI5YLJczH8WJ
+d9QngdJHY4QI0NoqF7JuKLtx4QIjkmdCfyCZWrUEyfztl7DqTXS6phjNkYVs3hRdUphLW1RxcFHH
++1zl1V4kmTyzPfzzWhw2RwZ/MXkiINjMniP0B8rJfrWzRUcSslE5sFqTc+CqE6Nw9qGzzgqOa8XZ
+PBwqg3LikANydaaTct9lwFbCutMgOPz1TWNeNujlo3PlTdh82Ja0CVNwUNAsSsfQtJrN6mT6+vYg
+f06KZJCy2nhruBsrwuZqcNMAoqXdRXHQya+YO9N5TyeBqwOIY+5zKJ/z09tDnriBCL0ozCG/YtJ4
+RqC9mBbTykWDVLCXtizOyl3iNYdmnqbw7VFOXBgZiOx8CDqxXXs7ikKTH3P8R1/iE9VSF4m4QUrX
+k9pBiZMo4nPSxNPjcSxxn40A23VNmvooBA0rkoA0eqFa0cUC7RNOwD3pzPXjOHXWj7cv8eSNXEXd
+LDIoHv4oB5TEYVmrMnFOqjTEgBOHRT0sZ2b5E6N4+BJ1x0GjTtD35qui9ErZemJ9GQs9evAmghj6
+LJ/PeHnW9+z14owgw2ElwUdELq6/mSEiNxliXDZQ7xD6H5JiIp8+k+o9/ibINsoT+DrjqQ0xapbH
+t2/jiSfHbgsp+Zrsa4itrEqmetq2yLWIP7LjL6vc48sy+nZ/KGrKeQRgKSAybw/557KCOIcHxnEA
+wwget9cTfKJMPNnuRHK5VS1HZzSNr4UGgORGMykZPES1tAwqsquV9u2BTz1M114DFpnssQRsPndc
+QOxf6wHRRTJgknbI/u2bRv31NpbLw4SHNwvwFwv968urm0mMvjdSzi+86ki/Ek0EUkDBp1AUpXPm
+BT316qxLM9Iu7igC89ejjSxqlTcjBYG3nh4z1167OqlmA28Q2W3VxfOtQ6PsSANl/vD3t1NwG9Fa
+ebw+zrqQv5jKRCpbet8O4aogLh6MUuA8ng33zOp56gUVYOa5Qj5C1tHXo9CMazD88ahKd8X7VJr2
+1ZqQqc653V5MmnsOgPnn9oN5mYO8oJ60Gps2L8my9MC8RpQ5Tpk478zZRtXkudlaUUpSvT/zSm7B
+tSw6DEelYd2C8PetXC6d5jzKEgsa7xJJtesQ74zk+vhTceEQdFXtx5yMGl1aHaleVd386CYEuzuQ
+Ark881tO3OlVPsaRiBvN8r55nosZW26zIBKc0bITqHZs5HzIzHoKRVyW4dsvz1ZEtl64j7gRc8Lz
+krEVkZUq7yjOUQTPjCgG4FaWUUYnCeoOCQf4gwBUAlEActsQUXdNInf72Wg5y+1yacJ8oWLgVD+M
+ZjEm8sY0J0Eswox1jZ8fkUvE8erMh7Z1nT7/YBtnOHt9Hand1kw0lX4Suzr4Bp8vutynctBv1VRY
+R6Ti1UXkxascq+2PCVwBzBZaC+ggnoVBhPjojme+itO/BhsaEeou68b2vcncoSDpGsFftCyov1Ck
+pM9uGdsJyL8Z7nl7tUtdSTpFRUtPtiDPTZOkChIuqv+dNPefO/Pit1ivP9EEqXaGBnhltIF9wj5Z
+wCI3zx0oT72evC+YUKlWMelsnEH1DDxQ2IwSD20S2J3f/wIak9/KXo+vZM/p7+039MRqwTbN5ZNk
+UUYtv/73F9Ob7S56jVkHIasDGaPTCBkUc6nO3LsT0w2jrI5XTlo8ys1HN6GxLKaRIwgykvYpymIn
+bFsz/obD+dwu4+QFcZxb6fWA8rcI4TXynLhY9jJdI/Iw6mgYddByzuxlTo4CXpHZjKrKnwLcWESN
+iT8NdVOceodqmuwx5BAHbunt53PqznkssTwjfE6UNV4/n45zg4fHk4FAHx7wFmShqKV4bJLYev9v
+hnIo0q57dtwor4cq+6lHk8NDaqahuSc/CX1J7nVy1W+r7OO/GAzjFsU9du+kYb0ezC5x8biwYaCz
+NMlhHAccRShgQhAO5eHtoU49K3Z/rK24Ftk8bF6+lYDk9ojEOIw45WOup8SuefIcev7UhwsxQKyF
+JxaY7e62KqRLy5L3rkJB+//YO7MsOZGsW0/lToBcRg+vjuPu0TeKkBTxwlKXgNEYvQGzuWO5E7sf
+ntVIoazS0v/8v1UtSemOYxh2ztn722I3EpGFZCjX7zN6X4dmTIr9f7+sv1sZtBGxoDkgV/Hx/PgL
+2gOExMpjUgjUEknxWonnTqJnoGTIfnGzfr42GjGYBbZ0d5okbw012iFyGYxmtYMG3B1JpX1QAXmw
+w+qdRJdPv7iwv/m0APE+ZqGQEwpejx8vTI+2ga2742yiDe9yE4w+oWSC82eO633SZskvjrI/rw+P
+3S90t8MJtb715vNyXGWOaSgkJX6bvjTmijzHtvTjf79df/sp2Ed4jKnjfkKbG8bkzdBssK82afEJ
+QEl3CyCl+MUb829+u+2ARZOEuoO395u1ziBgTZsAMVc9LdO9SY40AUu1bC+JR/Q+WG1S/vnbl8US
+xK6Ca/Y8QPvxZtleecYtUwcsDnVAZX3NSRf97fKNUgNS1bahM3B92yaxjDGBIjVRORJrie0yAeRX
+o9KJOrzcw05wz37xO/58t9jX0diHlKucW9++FluYUe4yMe9byna89leZ3IhR2/q3d3ffcfHn4otj
+d6f0/vHXCyrDnIKQfKHMHkinKqpva0PeOrSffzCu/6Pr/acL8pBb+TxOVN/WVn3/+Ekpcl9jFG2z
+M9slf6mU0cTFkP2q8//zQZ+PoezlPBGiicKp8ePH+EAt2sAHPwL80iZEsg6kfaUXXdg309iUG/cr
+NIpYtG4zHyWquPA+SejpkyHY/nIa93fXvG0hFP7sJkz+fvwyxD05OSCvZreQDa8A9dnZtZO71e+e
+BXi14BplYbJBejgpf/wYsTDKdLZuofJ1sA9t/a22RXo6P2f/ixX6ASt0bgr952y8m0/E4h071ffq
+/3wlIG8sv+eV077c3rr/4Au54g+QIMxFeavzzqK//29eefAHPYtN10CPhE719q/+xRfy+TNuKA8+
+mA/hb5yjf+XjOX8Ij4Y9s0/Bhsfd/h2+EEc4Fsb3DTGBe+ts4OKoyuPvb5v5d2fvBEgcPBsCPLsS
+R9AO5qT93MNpGQ8m6lRiVspu/DbpdvkoR4wQ5PxaA66U1rxoLD1HpAKb75iizXtyH5dTreWVAQ77
+g4m74kvaBcV9Aef5dhgtGCxzOl0gKCZqrFXZ9JA5dmnBzeTgv4Y59huijhCcJpP5ujje9Bg2NOZm
+WdUf5rDODs0gcewBayNaPEH5lfFywfvtiKPNE/bsWEWvd1h9+oMe+847CD8tyHIee/+DVQ+djGof
+GPE45sULA8PQ3E2VXE+EdaqvgS343m3jv+TG4O95rz2qMETM5qwAhbeDwnM/5SHxoHDclYdzhVYm
+Gi2tTePKaX326BzZtdonPeR3jU3ic5GOwZHiyrgiRRUSIjjnG4VH/0VYhFBfEGdKQe4MreF9PCMj
+obfbkUBeFel63qKE29p+cRjYE81XzE9VP1nPI+ndu4KMJhxMyYwWTUvNLxZoYGyoSMlvz51ZXaPH
+ttdYlCMSOIkefleE9qbuo18cp6qan4Sh06+q2C6QpTJWkNas9p0eAqTuzgylLV9GOG5d3qKPDp31
+SusAlV06uGCPuTpG7lTuyNUKyqk9DDzQl4L/lZtW8a6yCXuLg9xMvyY2TqxoAWS0xH2TEtCMEQBb
+mjAcfakb4syIbrNfAOIld+Q1L3AOaSne82plC5tSiWLfL3sYDiN+DW5kyvSgJAGIRtWHxUX/L9Hm
+oNuGPnU/hEhu4xIEw+XiuFDe0bj1BJ6a6iEZU++LxreBHMtpUU9CSR/66ktulHc0s4mTDgJlnih2
+JYFzjqguTNMJ74LSzt6Plj8c1Rykz4ufA74a0gJe6dqZfuTC2x4pkcfkAnGhfduZrrr28sZ/yGSX
+XdTW/I1EWMnES8sPczDKmIFEA7O9Cl+a1vGeE23iAnEru33ukZFueWPlh5xowOwisBfuUNJqL54d
+s772wNa+hvMSGidRekxo+mEL5iaguoJG7QQ3Z/I1VNfFRP/vyE8anW9wp1zN3ZxIRt4TODh+tBHW
+32V5CS4sdUq5RiMnkCwuwE1GqGc8BLtb6jcDDYSUJVLPMkbRGKSXwoW8sxt6R0rghoEkDceZgmPg
+bf4vMZr9fCWaakvSFhvTTnvuGnNa6g5eYMAknsP5CL4fBF5yxuFpOcCPZUlkgBMzfY/GAmqeI108
+Z3NVjyQqKyuWNelFO8C0abyWluRRbuDudetcopyUZyBfazrzQ1PZxO4pRIH1Gd5HdWk+U3gHRyIC
+yuO6upjhiiAyvKHnr7i5G8uNC+ifEYH6jAvszuhAge/ggQ45DEUv+dM9cwbVmTnYZBOASFZfkt4z
+eoRL2E6O/aqGensYzvhCqtTgyFuD5xLFu5s+6nrzyAV+3mskr8p+UTpgpyjOfMTU4jE9oISFF5zM
+AYY9vD/gFMVUpF+DM2TRPQMX1zN8EUglSNqcf6QuNtNAefIgsA53Xq4exLAGsH+zj0YZXiq7XR6L
+1Z8Osulf6zRpP5HhGxLGjsg+smfvNJYuMvXJbZPi0Qpb/12XSUTpxdZwC4Laeeys8OB7C8a8Jv+z
+RZ69E8ZSfOHkSIwUEKVjmDpN/XFchNZRVwmUyoXfLutJyZ7o945ZxHVhZBuQm80iP1ZDXyTTvgzC
+VZO2OK5eVAtVpvuEJjpyfS8Ps31IMKc6JbO7w1if+je51wwW7p919uNeLX4Q9Uv4agW55R2HWUz1
+F/5c4HgoHOe9sPGLpJiRTrorDyY5kCTKNMSgsWkD7GkLlUZZ5hb4W8ulLXC72MO1m7JivCCbBGnN
+fmvgLzWb5mCQ7hm2BvqsHNjGesGAfHzVa9uEJ0KvsQQUbevPtzCiDsIeT9kERXeowzmatPmN3PbI
+8+ZDjXBoPvau07jHESuOf1zlp06t7xH8zpLvZdjLRWI55Z1PgkF9mc5BS8hqYz2b2iyqqOYbeMd2
+HsJmN2nQlRdWYySRObiM6AvlXWtvyNXOnqzymRxxyOXLoNUBDylPlN3fhetcFBEyVSKVWtmNV4nR
+pukRm30fraUEYFQndjtiLEUjdFee4z9B9gnrLghlIY6byfmyrJzZhOpN9ENcegOMZRC+96lDaP3o
+It6J27yr7Hgpfa+IzGagne7Qv466LFseVWus3zpsRUdU7dmzQfjTejmNY+8dAYeX157Q7bdW8Int
+OGrvc1+MmX2RZDgnb1BBEq1uN3523wZ9kN8qX5FBAUq+EVGtKqKy86qbHtuhnO2L1Ouw7eSyrXO2
+db9ZcJYs5mdjgNp3LMp8s/8VqwBokk7sv7rMxGEtmvSxh8W8PmgcdkBm3akhrztrk1NayfBzV88J
+D2/XdFLsu6ZNu1OaQ0C5btDF74itXmJHJHbkh8CfV91u2u0SSNOpqBuvN2I6BnaPnxnb9VVAjAax
+XrWfOrjMjInAJK6DOXtKlBn+1X6vZt9J+ve8XPwt0dwz51szp8Udt1TXzT41Ko5mjfZnsrRXXK38
+xH0yPI922Ft7T05HPLIkTtgd8aA72s5Dttd2l+v7tOpy4Lgws66mbpgqXqsL5jCa/k0SrfBaJ6BM
+VXhQCsgPMPQR820xN54BxXfowutmrUFojEDHuz2+n5lYABxIIyZEiNODKngxJS4o/GIammslvfwh
+nLiweO5dCMaFsjF5i7ZIX9pJtmC7Jltk4IVXPBx87AI4o01LLAND294mo1UMx3DphbqesU7JZztp
+jfYyHHR+gkMZ3GAbMhMiG5qx3A8BZtWLsEw4NqlZyCfhTe6XltzgMSocjhRxjaEd03ibh06Mk7+J
+vdo0gWtNJI2YKeEwJhUVh9KFcwkK1QlACtos/6jtKkC+LRQPWAZEl7b0ODg+Zp+6uRP1Uj5NnpXK
+o0vLS53oZzNDTgMsshecLPK9lHqPRc48YiNJvMtiYnpBu8AtvHgiP6HbIzLF2dk1ZSNiQnGAoHNT
+YtVO2JwRAl6ROsMe0p/EGFz6ahSnbma3Mz21pNdsUMurTDkPH7tMLJd9jtduz4oej7hbvgSuvGhw
+zc+Sl4ryFha+e0hs7yiG6p3FPmNM9Dml+5AO1vssy792mjwQYewr37oWS3Ap8ybfdb2P464uj76c
+XokAumgrvR/n8pOn+g9B7X1YnP6d7cLsNlZlRrYLZrkU5a6X1RIh0ImMBJ3HhKViUq+cux5B/F+j
+pjoE45ehy1+zxf/Sm8tlhx/wwu0CNmBjtgmsaMyuvVhUAy57glIXNC3gX92F4kq35OE+uYwfFKql
+SKj+kdmv5e6HqfxYVDmrAi4i2jdWZ4HDaLf64eTtV5PsH+xbQ+Z6D9nKrCpaR4/4bI169tAofKZP
+wly8+9Zgge1rfuPsAsYC/6bSg7YjgwJAPiPI/FzJdHkn/Wz4cxohzVy6jbSIkegNRExd1n7wllB/
+aZzebaNsJlmchhDP3k5z3dlJTwVBwyDjC3EKTXzqkV67vN4Pgz1/cEjP9uNsgtW+L815vR645hwq
+ejFbl0u4GPLUIjnT+OEZJKC5h1509In/9kx52a9uSya0s9JWoHUzDti/OEMfFt4fxJaVefrJUlkS
+cJds6qy2Tav0xshMgUXIW7KFuURIarmTCPFVFjZygA5idPY8yLK4GOumM67NymS+1s4o/v5qqf1v
+P+G7fgLjdFSL9NT+c0fhfgMV/7//+30b4V//6p+g4uCPTQJGT99FQ44emW7BP4PPnD881CR0EpBA
+IC3f4oL/2UiwrD9QC1DZI5ZmmsfI+btGgvcHytiQPwRTw19AVnlOp0u/qfu/GgR/xdP9+/9/z8h1
+z63+7xsJwHHPDTdgTLiGOF/92EhA7cGqgnCxN5RP1oSrW3Y1adbVg2F1ltqVhgdy3JsVGBMFn2E3
+D+Nc7PwhoBM9+60VGXoG51GCtuAPfU3Csm/lXRJPjqD0C8gemOMaJ+sF1msCsmSgAKV5Sw+MvSZr
+5EvQ+UMSiarsXjpyuswIa+8I2sAdHdy/diXuXCM1r1Ldj2yRibOVIPBdhjjVjZDsG/2KsTX0+wc7
+t0i8wLPeNTsQ/WKOqpk8tF3HKOxD6PGg7eFrwZipvI+rGIRAR2AmJ0mky9fBmpsHzEHVp8UdHLgB
+0H/4El3ObyDTslmjIvfwCWs03ztS7eko54Exak7kPpfWEYiCrL0jn23RGdFqXVUqczd3k4suz576
+PvKMNf+0ZA1nZ1y/KRyQbO6z40hVRTpWtYafiJpAG2ZVGWT8spx5nXFg616TYuF4JpSxnFJ/gasS
+pCVkdL5r/7GmmiB8uQ/9iyCti3eJrfsnoby82wNIsW6cDfJKLoCBAqzDjY3Ltvc/q2wIPvLCSpZT
+mPrjnUsEFXuKV4RmvEifiDit65tU5/771TeJcRgrC5829CqBebzWr77TrO+dau3n3Yjb/V63Sr3W
+oWof82nhzLaSruRE1I7VsO6kW9B0CQsAxQYH9698oisuDDt3n0uyYfLDlKxTQKQXZg9CKYZSxq2w
+88/+OrffFMR/MIJpPg4W9SSAAJIzZMbhEFtIFll5sRCJZ6jxiRh018e7GLp6X1GhvTetyukvchkO
+l0Xipy/+4sirlj7Ipw5/K6eHxO9bZFz+8OjV9fqpZooImmQZjR1iouk2b5bqVqJFJNsqaBMCAXyS
+2sks8JSNpclO4J7USiPTMgP/c+Zilo/UIJMEcEJbGiy+ILgWosJ3L811vUsKF06L6Vkfq0B5r9sw
+NQVkM3bXoraLK0SRDfSR0oUcAcflcWm0xjVXNTQtLI4ODzQm2xRWRmXxXOSD+46Gck6oZhFSNa4c
+jvbwAPuDs6bhI0VQdwq8fn4wuyZk7oaEP0loB0XsVlQTYuoyB05ipoIjfYPp0cjhHkclxeJrL3RH
+WhaADBQRnYaPPPqrja6klktycJTZ3cBX1F/w5fbJDsCBvBo6BmExr0G9HHCQ0udDBe3UcanWlYRA
+R1HVj261nSLlBDV3TXP3USTp+LoGHMIj0WgbjATmcGKWUmrDHZJgFca6EMPXOsBucHDSbr1pRm7i
+SXhpIQ+umHA2Jrj0OUi3bkaDZ1ns69lX9QM8lBAfN2Dzr2O2UjcxIHI+2dwiAjpI6DBxgkvqNbMx
+OQfoMXCjrtEGkBrbIhOFDAmWUoeOkU5RpqW7L4xQpFFdtzQKQ+SIL4YK+1fcz+W1nmT9Gcc8FpDR
+48QKAAAdEvwXo3bjVPre8ICR3X+H0G0ldtu2uitpDpii/QBxdYy9ml4f+ZBVZMChQVdU2O6LzAno
+2CMuN7p48RKCfnzDAeeTCas9eTBennPpVuQ4rQM+4kxq733lluK+degmxcjrOno2s8wpgtbyA1MS
+g618DPo/u7Ssxl1VTjqPG9ub9koS2oXve8K1PzVG9gWTcScOjmUgiFnauSCGqTX6iDKibiP6M4u/
+x2I7/ymwnrRQUrrWp5TKnMekDdIldnOlvs4ctt5R5YJ/0n03PCZVRb09ulYoI7Y61gT9VPp5KXSW
+C64VA5fR52x4NA4kFQjpPx6Or9H+MGOWHNhCWkH80ghiBv/4LD82mG9h7yDzv9ROjv8dugy2Xdzu
+z9QzBuOjwqRaEaNu3wUKssE+XVwy4AjKYlVTedBEFWFK363IMMMCTmrn9ZR2nMh2m9jVi8D6Fuk+
+hbDC92EwPu9TJ5s/pzjsXwJPte9A72wu68TESzy5QWfEwmeP3lXuZA47YxyaD/2Q0Vyj5qOP2xdr
+iP7P4MlmO56cy9ok3+uYLjZru5TVbTjPUwfoySaHa7ZcQvNI+8Ay0SRE1NGNr7k/9Dq/5mXrvdpN
+ElgxNfgCb8gKHeOAIs4qLmW9mM8hHRDnal3VGp5YH569N0NYEXumGlyYWhaELWLuiITqydzZsrKK
+cH3oeeE+p0JSP1MN5+NFIdytMh7IDtgNLNs9QnCv2KuGRzsi0wxLuBp8vNpE9xEXtda6PaWNP7fI
+qorWeWTwXxRHxgW5cUKaTmRlzUYwv0vnIXlM2JyIr0EAp+8syFfmlrxavTJFIPRpGRTJKmXVpvIg
+8r53dnCzvJOFSF1FYgkpx9whWTtgRX1CU7M2DYumP3al46Js+Tg2ds+gQC8eGdzY3MCflBYw8pWE
+G1Sm2je8OHfU5O7mvvW6vTV04K/pdM993IW6q6G9zBa8HG9rSpmGX7ncLlgwuwVgiRnP5NeNO9ce
++PuZl1dfmnxtjAiIqcpiWzYUsCBIlne+P83jZaCKcTzmgncUjZcuOSEomcvd3ErxNNe0nxy4S59U
+Ywp9RBnXZbvEyTTzY70hSJdBlJ91NydP9JWTr9AXw3RHOp6GvTJDe4rscGmvVN7aL10J5QERR+i8
+tDnVJ6ZFMzyCfylyngfaR6c5nZNHBq3NtIdm06MIdwuM/ebaYn8vC/hlhbVxQoq5Dpx9kjBm2G0q
+5fte05jZqcZOLpUBroYWX85TnLewDiK7X8QzsV7L55KgMEUwrV97UYlgtQOAMKv7WjoIFZVGkbgz
+rT4jpcuuvHe8yTjMQYLw77PEddeoDRJOVFhEGo3RS6inWZaNx3nHMylN+1ISOV4MIXYHW7TMrhDr
+YyFnjh97VW97MQg9/67MkumjU4/pOwfUfnXdGrPPTKMAWdZbHQtFOS7dbY6DA6lMUA4Mlo4eRZxh
+RHmWUwqvtzdWlo6TLeplkowFdrVErI/uk7f3MWUYbsZ+kdugM3Lfmvd2MWdQygw2DAiHHhtMDkeF
+M5yf6mgIFihKndUSlWSEZs2LtFsJTGymxN5Dtireeb0cxiPtEUkIQQ3laQ+zAIEY9DLFYYDkKwhQ
+2mK7L5mmQBnmReFB98mqZxSfNcnsGqYVoppqMX9TzIAM3XNd099kGgJm5RtRSDJldRU6S74XGq+R
+GZT90VSTPHxXOP2jLPm+DPlJrPnXx2D/oeDB0WRu487vxpk1sF2Rg/DZg6s7DSFTqyldjRjJmkHB
+24vb1oHYlLV+EydzMh9aYYYMiIbfZHMSmbFd7r+/x5uxv9MIPWCnIIS9Q0Q0u353hHLNY+nDKmOT
+pMlnE9NeAeNxoULE//1neCs62D7dw9KDaA8N00+SDm+1YarhW93j78rjwS6DPV0q9Ysfe7tlP1Z8
+P37KG5loR4MsZ1Cc7wOaL5cu/YRYpON0gGJm7//7BVmbCOXNZ6Gb85iKoxhHJPpGpKISP8nyxcn3
+Fb0+nNszjzw7ZldYlzkjj1eMs6t5gd9TvCbWhLkM+h0YD1WZx4Ix200jUXjs4KQbzFlkcTJXy/g2
+Vqb92igiMncGZzF3z74Q3qcje9Hvrn6O1Jt1ksMIknfK7R+XpQQDl2oZyr1lodFwg1zFRp6bF//9
+V/rptm+fskHLASbgqKei/2Hx98rWWROQSNY4Fo8XqacHdPTub+qF0JggtKLM5/TiQmd4s7TJkkgW
+mwDBPSJnOqSZAO2jTXmaEzH/pi1y+yhCJXiUBfNk8OQ/XhCnZyFEzty17Yf0y8q4+cl10/bQSnem
+lU4gIMyY/8n14VNDT0N+AJ//5vq6lR84RWe9l2gDyDRyGrb72kf8aupfLIufniD++4iVkJXhAcCG
+/UZ84ZYZAyq4M3u92sNdk6kqUlNgkrpqT794WH9eG6i72JY4c26q5LchBYKxwdKMAWA0vapj2Jd/
+dgwnfrHvbAvsh6cUs/UmphUeB/Btjfx4v3rbLAYHJigL0F+eR2q2/Wo42XVg1P3NFtZ3A6Kz+1V4
+y99d2vef+mbZwz1TwsmSfI+MZT2BSGJi30/WX+Kn/yhe2x7Rt9eGUwUVDwpeWnBv1qLLJBNSI28W
+EJP5PWhLihpoUFHlNCQVZpunLAfJeXKyIfn0u881/nQ8k2KznQLlfrN7zGvfGMa8zRaYLe7hHhXX
+xUAJ/D/4FFIWiJ/ioabA/PHmubBkTIhwAGnBSB1s9sWDuRWT//1Tfn5Ds0bAKaBOBvfPePHNG1r5
+KEWoWiUDCk6y+81O6HOG8hnCjXiDwTip3L5eMuKyASmJmg26BVsBNLGwIKLCvPzFN9oW5dsby2Xb
+m1gQid5ba/KUIgppV4cvtLbOMeXs+lC7ebmXXQNfPRyn8Bcr6W+ekk27tSWqoZtGR/TjD50NjmNM
+vpYgaAHrDoNJ7opvqOAEuYT6XDbB9cQcsPrFw/nzZoNkjPYx6nCeT/Mtb2UwcF+azOH2KV2mg1vL
+lZjNEX8X/VrL+8ViOh+03vyqsA/w8GyvCMFO+uNFhrVY/BCu9F75o3dLFRHu+rI33rWu8PeMQwhw
+tXJzopxV1nwDQiS8ZeUrY29Twx4HuB4HelXJ8bz6/nfi8N3Egbu7EUT+87zhOwXj9zOHf/y7f0sX
+Lexpm+vX2t5QLs/pPyYOnvkHznReItv65XYF3Nt/Thz8PzagD8LbLbIQ5yebyD+ViyYzDMyvIaJF
+MtPZYszfGTh4Z13y9yuMGgKWCDkMfBLZJdabXdGeUwaIUgXRMPUD8dCIESisRstki6QkfSCltXWf
+XLmFnBrnwFNvxIJ0EdAii8xgbceHjJAKRsDnpFR7gKLNI0KAau858HZLZNDLceW4E9xZXUU/JrXm
+AbINQazVZl2LzMK5KcAPFw8jSbgcE5qRyLeMISszchx362uVD31+N0Ky/FqBBFH7IgmZ/yP2a28d
+vflueVl3L4nZIPFbp2FC/6/GqxFiH0S5cBHqVlKmyCMQ8oCs1zGx/tzEPSvDRFE/ml1hVkczT2pN
+QLdByj2s9A5mRQm6rUjz61BjXIuLPi3rYFea+CovaINYxg5QKNG/Bsj2OrK08OS19utyYz0OHJk5
+FzPtgJKyBIfSmdqM8oFsuduysedwv7RwR2NmH2sbwS+qlj3CxHY4mAPZ1FFPl72CUXVOOQ7Ambac
+RIUFZg9ckS2ZhLh2gUaRwfuVQbqw86XLJQwYm9crnbkwqfxotuvFurOmBPlgLYKVzZjSt79nq17W
+Y6M7W7wuble670dQxc1GDsxCrE9179yTID5Y90QTwDYWWYlWUiFDIqQ69Prh0k8m+VwOnflptMr6
+Q1L4GNk3EGO5W9GY7Og8OseikuQd44+z48zXZOyloXb2em6qd7aN6LUtq9hfQy7ZyoLCoaZPsiYa
+u8X9RLJ83t5nY6Xv/QrvUlXp6WlO7Ka/zag6F1oBNbAdw+4UjMohrPK7duhFR9RXTYa0jVSdcBbO
+aSirCJ8T8ZL3uXerl2UIj0Sv6fGAUqMKMWCV63i/rkZCj7AYy3mGTDQt1j6FdYmAoPLs/uCNeRWT
+g1x+6lzRvuT1QgpXu4iOtrqtAiNeRkDlTWj2cI3YkhU5kLIRZNQKERM7rJ7g18E+yQuimQ/8LLBQ
+eVhm51NYtOEhgWua7RuFhugbTd6FnFwyCMRpDCYmavvJ1WT38jvmWk6xQrw3EETQ2X7jJoxd1qSt
+lpthJkq4uOS/HyT+HkH0+mHRSM7wok70vrnVR2dYPvpuP0frUrSPDADlheoXeiks05NKFSQJtB4D
+ePach1D1cwK5txkIhRN+TqyIIXxSUmmb0KF050TeWsOcvUfCw5AG1ujJpmF66AnevNno4aeSvvMX
+TXpEPTUuAxsviUMVLPehW5MxrhAXxdbqV6+yzsi8sqVNRQfJLLtXRG2+cG3TyUoUn8gmYR/spNnn
+Bv1ZuyzpTaukuLT8Xt9PPUNApl83hkiBPWrgkcFYLLSy3O5xgtCI7w1+JdJUApB3RAQtt1jIgmsf
+d2w852uyaaRp/sm1g7XM29b4sIbYenZ0yMYy9tFI33eTuV4bZVE8oYfpXwJ0ttDVSxbmzmqwP/YN
+TWqEB+J6NluPVqM5+8WOHRREKeqryuJxdLvbNB3Mh8pVwJ8b1IXf6OgpJ1ISiRkkFw/JMhkDqj2Q
+VJqquM4NE61VaabkdasU9CEEJM/Y0YeanXvPK417s+u7S/q94qLtA3yz68r8B5WftvLYN4rlaaL3
+WhJxzlyD5Wpl3QH3n31qhgF4Od4svrX0jSUyjCBNLucSg2KULEVDB4sjPB35CuEUQ08HF1xMF72U
+11Vp0u1rF784FOGcGVHKtllGxDcjmSNsj3IoCEAFQyJtD104dQcnnOzikQmxMeE5ZnFiPwPynrhs
+XbsudOrpkDbMLB5UaH9bPXRWbR3sRUaPdB7b6lZrXqESgWDD9h754Fq74iK3KU0M6LbCNcqPsgi/
+zqhsqMr6xoNBX9Bchik5m2WsGUgSkW5MRX9QyTCGUSpNNR4n0QAaMQixvlgND9YNwGjjiGKbyY66
+WAktqWK9omyCUtDcukuo0Jdp2S6Hjlr2lSgukgxc6F+QL6C0Is6d1IXh9PqUjkTBQzfocrYjBvC0
+zWhe8yvXAeP2Quv2jpCZK2x3Orsq3aUMDr5YiDsPtqyOU9N7XoDSSje3RLLI/qITRRncrGnXxKuh
+2eL1OFvBB3tRQYyKHQTxmiSwtvtpZALgBBK0I+M2Jna1PhgOfwsfrb/EJt6xBymLmt4hP/HJ3tD4
++ccxU0+6zrZXXrG6X4ALL1ezNaXmsavkfYK250URiQxQeTVYGCOUs+plVVvYPdu5cFHIM4Ri4jTQ
+JWxX179xZimdXQUPFsUU+wNaZ8wbdKAzK3tcGwfxroR0t5Moquqy0JdlqQE/B/5rRnN3V636U72q
+xynNHlF2r5di7D+S3sgUltf4ZH8tBUqCpQ+D3eK6p57NfBeM7nVLaDhjQ3IoKm+8MioSdIiRLdSp
+bubZY2sMeADgXNBGVB1ZFKbduhfZ7PgjE73Uu226INuoDQwIYcCvxtTHad+WI+aqrv/saWJGTiax
+IZ9VOVnslaV6WswgQ6yeLNK7mPuaVy6lkQ+YqbOa/jBnhBhR+XTEWnSOXT9aKQ23SyxVYxYjlUPu
+ORWyf6anwMjOybu6fbLaYn4GO4r8Dmpd2B5no1uONqcDutgzge23clH1cuwWNIfQ7vhPy574X+YB
+/UTIu+YT60H4X8px7p8bZ9g4x9oU34Bhe48WMUIy6rCNRLmc7pPc2jfzOlNCeBPK5QVdo9W+41fN
+Ltn+ZTzZmjLHclpeivlHdqH6kLRmuPfs3H9pMnHyCZcg8oYqbaYdF1oo4rJk3odhW8C6zJ5X04YI
+IZCOL9TcGA8qV977ubTci3ENUF8jm4oqgyiNesaRoPT7Oh84NKRlhoLOTTpXPheeqq9KH34tAkwR
+vFdTs4QxaxeKetHNRYXaBLgxXPfRLSVA52TlDl1mc+JVkBWqYEEBOhmT1SsOb1XKUU8r4jgi+BzS
+vBiNjvLRLBB+epWpggOQIp29eiqYbqpSdsGrEkP2wUynMeCrbh1wTPzNckxnTz/ZpAgVO6Gs/Mog
+pi6NlbT0N10njCKNdmJ2l4bGe9/g4bWVXlFO+LwT253hYdYwBlotu54jxNHuVvbbMzN6s6N3EcAy
+WM41GhXyyoUZ6KfOqQJ4f712kOImw1mWuyl0+7NYF8NylRO4sYl4m7OgF6b89FidZb7ZX5Lfs/zX
+I1EivyWDkVdtsymEgcEu4qbvw9y+aP189T53Zz0xk69vQNSdeEh4f0jlDN4Ru027XjabFHmyB+PY
+bPJkO+gRJ26SZYj85ciEj9dD1PpDbZMZsCmc8d2XV4wzrfumtMOr4ayFdptkMRHIIpGmd4daekOF
+WXfFWUVtMNc177iCdNpN66Yh7b0OOWG1ZOmR1Fi02PMmy+YWW3aEePZdq10eubOIm42rep7O0m4c
+Eu6172uCdYSNBPcsAscUjyC8OovD3WqLVGg2zXi2qce9s5C8ysfyzv1LXn6Wmq+N/DScFejdWY3+
+/9k7j+XIkSyL/svsUQYtFrOBCEkyqNUGxqRwaOXQXz8HrGmz6jGbxeynF2WZ2ZnBiADg/vy9e8+F
+kIEyXe83eQWICoaGDdMpuO6M1WU2Hehr7bJfhbvabQD88Vf5TgLN8J786uET4rURvKYNAg5kxDuC
+kTqa6jmV5EHnX/q2IYar2rPFlYh1JQ3Er/AemSIifJSgCPJpDG3ifMs6ZvVQnWTZbalSrflc/0r6
+ky2f6lP7lfp3bLSshqZBmbroWHjStR70EHGkmd80hr7WB7Ja8A+UsJWE73Tw+kOUKqod5L9+A3xX
+ijeGKLuB9qiEMhpMKXNbg9JVuJGqI6c8tL8eBj0mmCGg/sfbsGw2B70ype8qSfHZbCYIwqB+sNAS
+6zC6O2mv5r1r4eiE7R0bkbYZKYa/PRVrXxMGgdNCwQBdBL0Rp9e8ansmeHE+yCqddvHgyS8HnGJg
+EubDltMPxt9Q1v9vdfyj1cGQw6Mb/L+3Ou7r7iMtabd+M/nrl+PXf/7Hf/+bf7U53L8YmGytP5pc
+mGf/Iay0zb9cnN6oGmlVkgFLP+2/uxzWX/o2l9gamIQnb+jtf3Q5/qKlub0ijVqbvj6ku/+DrJIK
+6d+7kwTe4gJlNEDXZGMD0DT5t5mOmLHx2GVXB7mdWkXQ9pwsQjGn5UOLgudFAiX4yBzp/BSFtI4m
+0Q/HWGEKVvSpNYYphkRzPzTNwPl7JklJZ5OC9Woo46eczfiOR2vEZkfAK4UPRsVv7Pr9i7s2MWod
+K0MgIKYShUqJdJ7kyfqjEAmlzlQSLILjwRzXIKHTEFP7DsrEEbyoux3qruaWae+w2TKyUo1GdHuP
+1O49nqJ0RnGZjMgAQg2FXBrWhHaEDO56+r3DOn+W9VA+LISENfvK7FD/LYaCx2A0mhUHpEYmkOwc
+4ukSz5kfx0mo2JqW2C5I3kA9ScBHxcQdXFD/hZAArQGCaEKYYmcyrsCvKV5oNrZxtGwNzdSaZOmn
+aa3pPeiYRCOWOiFrwVZy5cFVVPmpD539ulBISzpLcHL9XLQsybjPh5MmUvUVjPT0ohec5H0TxYyB
+yIEgpDskwSgge9qaT2uWrK3PPElToZTmFfsPbxGX52B8jZVX/mHLrXPfLgy6QZwjlWvdmWyOYbY1
+HkF0N+zSjlW3USXXlvwM5LdLsMaqfm2slPiRR6oep/d2idWwqmL1K8Y6wYmwi0cvUIVYxSknEW/W
+7wsb2+7d6CSx3tyjgBlvJ2WKO1pJ6GbQlhrxZaII4kNuAJtQ7XvzabIW6ygIcks2q291oitPwIFZ
+KWSR1MagvNK04f0R6RNJELU3opyJeYhh0eiYNZslCyhEOKoP+OJuqoYTjE8Ki/M4thJtlZouyd1v
+DYJObnsPece/lnn9q39Ypu8a4cWL4GN1Pvoozj2bVurFlPX8iIp+4bQrK+8enaDuIDKRKTWiJUV+
+4C9U6IwRJOLXImYUf25vKyNaOk++xGytM4OpmHNwUs/aq0kNStop806xg/5gRh5hLURuzEm8X6Fc
+GcD8iabw+0Q6IhjRF9Cnq0S5BtjE7ROqCk6r1iC100DOEy191CNHKTig+JVI9HGLTJyScGPNnFGl
+pTLEWTl/TbbXlAfSAepbt+615z6NAWIqaz9q1DO9ZvscXLcEVqW02906ZOs5SXLnbc42kAuOhfyx
+duHvBlPq0m5AUIRzhHSw5MlB6HebkAk2BMsMPofzBsFmQceEeOtWmey3PP1oyRKNBDrYNMufLbDj
+K2nq6UsZ5uRjEnlxRYtOk35uTymWiUJpbtdsyB8rbKqYPmFtvA5GpUqkRp39BCmuUHCLaquxWxOX
+6MVFUXszTKVN18ScZQw4KDemIEei9YzDScuPGtkOT1WZTVo4mqIYb5bESW9wEblY6oZBcvt72hAS
+SbTe1BJVB7ohJ0v9WK167je6nly6Un018jGuCWHKO8OnG1XbQVNM7iMgJOvK1L1YZYHYWowrt7G3
+84zBfFy5Yx9VQ8SsSKiyj2mJQDLsB2nVBx48ThQN6oCv3szpmOlkRtKzI1hviBrPkwdXrfQhlClZ
+cfxBKXhjsdtdecpoWEFb1bVzGCEBHY0M3Ar3KMUPzZW+fszEmCehRKn92sZLzdzDKA+s0fJCfo+N
+7H12jBvdbNQ3RCHej9rpyCN7xfuReJoHJLJxuwQIpTnex8gr0dkiA0S5q6GGiK0Ce5tikXPpz1rZ
+fkzTJrkVIO8ovr3V+EQ0MDzU5L1tv7flY1YY/WdJUJxxMta22IMhcdNgdiWhHiktan1HsuPQExUa
+c0Smf6k9gyceKYrqVbzbFeIqyqD4w+sX5W5gFbnzFG/Kodl1PCFxb0GickpTUyO2gXY3AVxivdJm
+JFzJkC7XU1vMKg1mTMoOGSO5bylL/5kZEGpOdVkZmzNWd/aF2o1qmE158T4QlkhAaONWBBHm0vgz
+cahw4L4s9UdGN2QmUa2sLnpGIodOE/ZGLlL/cDhbW77RSvtjFEX2SCFL12AwC3mCKPesNZUH6AB1
+wcgRQDfHQwGYamE0mZY/c6sqfypi8AgxW5flIa1/rcv1WiSXDNawgbB6rL61QvJQTYuX59z4ZlFw
+Pi22w/zMd0k3u/0RBJu8L0Yj7oYmkbd2kfRvSU+Lyx/5+j4dopDO89a32vxxLtet8SpckLj2Nw1/
+IsxgMCXCFBX/5exrSTLcaIS5Sb/XRrmGJhazR21JXDX0XCu9pQ1EZ6ZRU6Dci6ZU826EnE2kU5ta
+zt6Li/nZktuUgRr1WReN9WTSmCcfyx4rJ8zqscrCmaN4h6eTFhU9D3110WEoHGEng/uUHUYrTzqt
+bQsbsyfWaOWUXWU6tzEJFu0Nihzn3evL3iYhJ1d+qnYqCz8eTfOCwBdrPfmJj5M+tCpSDlolfmUg
+PGanRLkj2VI7OJTufJ8XwvrOAHWdFVaXo51hCgkFg4jx6Lljn++6uXT7AGUkugM1hlCQuRQmuxWB
+1Z30yhqel5VW58xWx/7Y4dN7r0dDuZ4zYJo7+iBsMKm3DidHdN594sXLjIQ4J8xFGrMVB0vStpG7
+dUYPuM2rLKCUN79cXR9pVmLiOpukdD2bEx3nbfMh3izWFwJHFy7XvkSwM+3GMVlfaR9pDbZbElLJ
+eErQHDlWWwV5Pw48FHquR6Xp9lOQdMrY+E3mzFyscsHCMMbDzYAR7HXwDOPRyg3xYE0EALHit1JF
+xJdlcUjjUP2JWVSOSsqxUMMe76PScO1dN8IkCEwmKLeClE0bjG9WE0a6TnawgoO+rMZgzAGJkSa2
+nXQ0l0ikZkmibWGqRwv3Sht5a+1mgULai+OzDJifCGTiJxW/24uZesU7I/TlPHQ4OALYQU/slt6L
+O431l6qVxW03NOWfzFqNYw0aowts1egsilDdWX2tXIUSDrLh/1ycItsRpgx4aLGdGBOmXJo50kwC
+LANsn+Tb5Lol7wvPHjXgD8O0RUA67a2Gs/5m02ecqVmr5hw7HXFvivU+LtK6duys+yjS3Hwx0L4n
+vjSL/k8uU5p/c2EblJ2kxSKat4Bl+N0g3Q/EWnAnh8QTV6vVzuyffKHX8QC3zVfFPFz1jZt8d8Lu
+Rx4JNNZHXcFw5y9znb5ByEzptdvmFFFo0Ss2GCQeRtwINIrGjvrK7slS4o/Tut2DkZquY1fDEmqj
+asKnkegUGRI/xRDVRkFSM3o1trd+7AYvpAs6fg5F+i6hcaQHM1u1u6TJcZbEEw6sSFM5GO+8uO4R
+OA5LD9CiGWGeNvi3qxNTVBZmS9E659Djz0IBOq4dxgUFEWqkmFYy0RnRjNuYJI+F7OI13oy6PK70
+blt83wwy9DeHpju3VdXz7yn79ck36w6P46CcAS7g0OmYWWyJVpwMdgadvZX4rQymiUy0TSfftqjo
+Kw2DZuSCBhBhXg/kiVV4aHFG2CN/P68ECXeu3vHnbm+Se6yIkfgyuVZUmlhJgCxgcmJPz3o6eUHX
+w+b0TbOj6dR1invD36BmHBeLoLEq216YdBDmP0bS8mvmP6t7mFxBe2YtVNgfjZfEUceLrLSXt4wd
+k97VFtNlYQlQnIH/utOAdl9ddFTsuaLXXegyucIg4CiZSUNxYqHupnG6E46wHwVsDCYbSb6iCray
+6WpcTO8P6RrqQETVXAgC0yvBxLmr1CeNZrPt4/gmxA/syfyOGz77rsYimYLCKexqB6RnOnkbTOro
+MPa+6jqAArllda9EJfO5KobOL3XNsDoalkysJMfS6Q5mG68AzUtPX4/p2uMOJ1EpvesK/DQs7Ban
+uhXJT7Kr7I6hT6vJ5BrthcV2OPLroEMDYFPxip7eCqlI31mhKC0Ts4JavMsbjgmV7Kz5b1Tn//cu
+/tmHwHFLS+F/71081p8fdC0q+W/di7//1b9sodZf6ANI5cDJCaDd20K5/mULVf9yKDERWnDUpIPt
+0if5l0jD2tBTiA7JtmBYYCBq+0f/wvhrCyra/ufYwKDhLP4f+hc6EPz/0cBA96rRQcHp4vBylrnJ
+kv6hyBazUToFuMGgthbgSYZLcmQ+T9POSiUDdA6oR44i2C3L0UWdK2ZFPNl0WC4sKPh9ZGdGjqW0
++4aJQ9hUotonafLtcvq6qIDkT4z78THg1LFB0Fh0JXLCZAimHyocH9P4qiZWfKm7sg3JyKyvM5qj
+n6mnTR+WWezqxrpdnFE9urZZn1uheU9zKV5BFs7vFtjrx9mp4vutdOfwOiDMFPrwli9Nd1u4uOYF
+rjBPqa70tuywTCcuI/Gy/iJYcqRoczJ9B9C+vXgSFFHfWMY5G1UcS8oy+dOIhYETmhNusC3hW96g
+XQrHKw/TYOe3xpw/6LT1u4DVr6ZfSH2ExtC+ATW0sqYvdegiY7hLqndH66ewN8b3lu2egQenj7DJ
+twVrWBl5ZtQRlpq+0BsHXW5MkIzoW/oJoq06cMry1Drl0S6WCyEjIgSus+wn1QLEkCz5bp6LLTcK
+I0g4OZlHDwnGZ1TnpKEyhxmPWTzUUTGPY2CS8YOpwkaGiRe2DeohdiInTgkkNwyGxJFjV0Pxmbcu
+i7ZQK/XAkbTzjsq8ZJcV68RiGfhVFBgE0laee8aNZ/wd5YWtgyxFI/cOTGyx+Ld8PeEyLhS30Gp2
+dcV+p2p5A2KFPK+OPy2Hj3roi3vTUVlgK9OOOiQ0B2D1ZIPOUadOw1WefWrdn6SiS+ECcgHDcbCE
+eDMn+bJqKwHD8bO5pvs8rvZtbEctLmkz+fFSlAoAG5xc+1ZF+TRk4OAFCbOUEcfUq44Cy4VNcVnm
+WyrOfLPUApdMecYhe27L5LCss7zReMZDvZaHbQwNFjOFG71DaSlDy+zCcnkY0hQrI+eyu6Ggv+bN
+fkNhvHDefMySnllQp5nRmLnXuuIQFqyhSHGrgxPnnLO8Y9+pEQdU5viEyOjjm4O7ZGrdnT7+GWLz
+TrGYC9r3ZvISL+8a6CzfjemPMSUMjLk3dnbai5tVc5izMwWt8pD4zd1ULFinjC4P5/GOOS8+Fg8Y
+yADdxsBqNqDrWNIXRncHKydv2W1vkPI/O50t/WZ7DQLl/KIXgaqDt/jBfesnThMmDhCcZty3mLX3
+qqFSTHnZU9sYGbIJ8QgN5WooFsx3Ztv8FAhtVFe5NdnRC8t76lP3KVHx71IKc8BUmoMGJtxsvlMU
+4UwtrLAkNd1vc4ftumJc9CtqwY+EXxK/lpxqSB/FT1Op6ntVe8W1zTSeYxRNJUe+4HOLaMgFRakc
+SsUNRg8mUmHThlr1n2WzCyUmaGzrrlfFF0/tS2IdSIgMWuFdSvN6zY1vk0pVqOJprjUv8Co5bW2z
+C+49uqJD9aEVSh4MAq74NGf3DKY0YOrFZWvscbSHH4Ehh6rHvY219HPO6pRB0nQLwetutqy3YW5f
+NmED0QfKFe2nh7TlLmN+FumVvFP74k1LTO7P/LpG+RHr1RHyZjQIvQpEDbxl7LU/YpKfJH0+D/Ga
+BbLP7aAslD/sJx/KnJy1QT/ok/PcJu0TfgVqOJG9xxWDwGkGzGQxr12keze4896D7TGlw2UcGJX3
+or0lBLegkM12U7cg8Px0a27PnOd7lSpJ8bfw6cKqfp+RUHCEusp4V7nyaswMpDokKcJd8Riz5NjZ
+3hsooM1EcoMOTSi1FN/4TeJph3WApmMP7+NULh/9IHY6Rik9f2ris8oyqKrDz2L3P4x//LLSPcTa
+TOTIJOZE390Bab+zU26DtevPcfElWRekSN7jNv0zGx6SB+WW/Yh7NjkrHLot8qh1gO9uixt4UoQC
+iqktA6sx7tpYfrbYLHaeXb1ALb/1OGsLo35y7TmgWfKHoW5U03MhVbs9wngr/XaZdoacxqDoxwC+
+18+gu5dsVZ8XTdy0KsEcTnJEH1X5RA+ETpOhXhix/KpTkh8zjIZQTCiMZ08PJ/o/PqxVNVgz0CPp
+VjEiRngSorotZ3EAhiuCQuu/7Cp+nFWGTjW5rWWG+X/yEIaMLfPdKj4yIlXi/pxiFMd/TGs+L/Xd
+Qo77LsZ6QXj80aqus84IrGm4Flnz5XkQSdI1u5pbky+ZgXXZeLrvpYRjI72qfXXqb9Klfk7L5tib
+MScTrgTWRIV7L0VRWXInqPW9HDwMtK3+Mpeyf1GZff7MzYLxX2cuVtBrm9SkZMDeqXu1ER4lag66
+JJ9vWGQ+tbS45LGm3I1aFnG6aHl0TYIJCi+wdTTs0rqwlW8iBrJ4TKbusnhr1y+rKyOYl/44PJhq
+cq5hp8Rd++BytIAB9pklKo2MQRso6ptAE59Z03bciIB6sBaaihF2MR0+o+1ObTmbF9DU4jDJ96R7
+bhcriLf+WrmMmCbNwJ4YF3RoQCySaguvvZWmOHZacdBXsUuSmLHOW+JUR9VOdpbBxJzzeTEiX3T9
+jHJp0sXFg2QxIrWidwhE41VKIA/JheEpOSSBJHnIBvcEdIpejCAxAZ5DwfUjMBdBaygSsqRvU2CB
+vV3s6W4ExpjcqNUnJ/Y3i/zoBjUi3I2rwS5CvNcvNdKNzZZZoy2T+fRuw8Sge4bQQIwokOqbeGl2
+9MEPGhxQuHHAi8wj0dzRYhhnC+VXpRDJYKU70G27hNxzpjmveWGgrFqAbxnXTd8+qO74LjPvrE0K
+yJstk9IIk1rfVVqMr11cWdafrDZu1Y7j8KQd5trZ1zUHXW4Vw/gZvJiFRZwaPLyV9jgO83YSi0pH
+vJfIzTL1hWOiX8j1Vu+LC2JJQqnpTVcS13k9UhBMJ2mgF8xocbkaWPvOncNMpuRI5zAvkGDkyITn
+kdG1wjea1PUOCSX8nnU5SNysxWAOUZqsNZYWRnLsMpveMNku+iM7EpMAxacBop29itTBuQGzVMrl
+YjYOueceaB5pndC2uzsiCT7tFFNMmlPB6pwXxWAfGRcFo5NfiiXZIRJ4NlUtgnZxHZNxOaHSax3Z
+XCO636VcokGzXH8ksfnG9cCvJWfQWj+dQrETWIOdhPFStjet5P531lELuy59bDUbdRnjdUYN0gtH
+t+TBWKRdBGZrhqMOT6TirzcibKmn/IlJj5bu43TeVxaijTqPRj090glCnhXzTgUQQuUjTeMIsagI
+4OWdEarS88tukpbMe3QE9HhjX3bGY03/A9nhErWLcV3X00mb1Uh2K5Aq70hpF22WSc/uIse9TgvM
+AFQlxZxEqoKAZBrNwNDit5iyVqubB4lDWKs4jSf5su/N71h71Q2qJH87pyvKEOg9IrecBDhisszA
+tScALCZ+7ftmuKGaxWxfbEw7qFsHzR4PdMd56FBbGkO3yy1pUdkyxuC8Utr6QencsMyfe+A0Zldf
+MXzTI7dYQiNz4TKmx3xxx1Bjozygrin7V4Q2jXrnLs/jEh/gYvvt2u5QhoMAdKN+WAJDaWZ/1IyX
+TDdQod1qg1f7pfpNUM4BQA49Ez6Bhu/d5jw0vSUzKhbPfZYszML90TVC74v2qDG4CIXrhElKM4w/
+TCnpzakIlHF8pM0a4VJFyoXQYKUXVJBjCLGTVhSURJtFuH0AZMU8lvBxQbw9kevqtVY8lt5r1h6n
+SrmxCvvkQhJThBd5dgTuzMe15lPno/mIyYHMjSbQkeQhMuRFgRfE2bZXajti8swjEsh2u6B7PIXp
+fuA3SkI5v57HwgrXQi9PTe7KUBYftIzeJA+8k8dlZI7dQ8W6P3UMPRQ91LXktiTq4lFr6+UhIbvX
+di6Wl1xLOhizXu3sftnzFBwTJmrS6qajLSzedCGqb+h9zoG5dETbEWFodlwgCxkG9Nolvpf9c1ky
+0PYMxm+qn2vQPDXAOkafPcZGGqkTV18H2pkaYctOs+8wARoa5nITj+UVnBvIQv1eFgkDWmTbCO/F
+EwvLXauqe89OgmJQWhiuph/HeqSrrCezRXtPa2RYLPpM8Q3MIba0JkqX5dGlRQxF8Bzn5X400OYP
+takFOZkeJ4B0/gq2KzfKeU8+CyKzqtytfQdEwwvTqfIC5m7eoe9eupZqptJP2VhEY6L6kk4O41ci
+3JogdaD8jOLeVJz6xhLUNQiH2KFYtvSXNWVSayoM2xaeYS+cKhhiaKox8vCQWZGloAjoV0GsFzJ4
+vaaGh6EYeHmGOZ3nLjtvBLpFjbJ1CovWEWiVblqRXznJ92ijizP/DMrbNKfFXs0qdIbgNRvrvje6
+s+q1vlzqCNPDQ0tbTl3vXbKK4vyjVR8dQewPVyvlPLy21c2UK+ND7ellMFjTYV2sXZeUHCtZ4RBB
+R109H7UMaWYl1uFbmXuWl3qIxloHA++0gAc0ZgtjfokZd1lL/JY77rGn+ldxWnhpGfZg7H8HEWdn
+Ns6OQ7Xa1EqULEp9QowJcnmQvV+wUC+WdH2dQyyoYcwfgQ0cN9vREYtNxiTY9s+2yODq1trc/ilW
+CMejuTVcmUjYIcCXGFzcmJXPSwwHol8zjpBp/x1P7pXI6eOKND+ULXpD7MvcgQkj1atlbp1jn6Qg
+7DFDK9Uh0YZBXOZyaOSd68mZaarSOMqpmdSTCarKcOZdnPbcS1xsimgq8du+GjjUulG7iQmGXPm0
+HQGNouNjAx+yLPT5+nK9am5IusKuYOsG8UTaaxI1HVgv0iX2ZTFwOyeMMVHFIphGR6m7yJFVyzjF
++GUOxkjcQ9mn3R+bNkGot4SpG+j/XldiFK47I2ZGKdDxT0BTYjvf2TO4P6agzaWsWhSJLTNQJWzH
+KhWRWm0DjcLTn2mAjKcq65YLAAdWyLmpH0sWx2MPbfcyJCXNDUQS4AfzSfmZFxa0oWLMS/aX+72W
+BmP1pWAkbFusQBhzkDzjV7qf+0y8WHyHUQz1jttx5CqvduPnko1gEb0XybSEkqjUf3JlsiFhOvcN
+AfRIQfnAVl+ZT0vuVhHDnoEoRt4/Ujvm8WkznlbhbIIDTrApVKo/tVspvpswbuRcX5+daessOaXz
+rkLda30qzOkRmb/znkIiB/kp+L1USxonLklwD9vpao920rv6pdLU6qSc3dnmRGChdqUG9rr0TkKa
+vcoHQdPHhWp4V2feJtms2x64NA3ynA3wJpcEIfd9ql+tOduDdL30PEEjviZ4iy95aY96Zz8atlGf
+kmawkSyDxXF1jmQ5yvW82rKbeZrVgzll6gGNfIPYevqk1dXdY2uYYC0p21uvAFKvFXI7khDCqfSK
+vass7cO0qqUJDm17T33XH6W0+Ytdy+vRJ4qmKkPCIhdetfZGxCmT8izyJXmRZIn66mhQsm8/Ujat
+u59G6V4nhUx3zrDKA5IGMMxW3uNl6amjt5/5yz5313K41GUtr3OuLtVBivGirZK7xhzlAXkVaLhi
+PLqd86XqDa87qXDWc7QxJgNQeFUl8wPhbb9s0C7WDT92cqf4Ij2oWxIc0u5vQLzBMJ4GJAZH0Mx3
+agwc+u9PCsP4HHcdpDrThBHcel/SSrKzaBJQ6EWsw0Mv1QMAb154+27rseAL6QiOxA7RAArt3EjO
+PS/cNbfThGCe6e1pSqnvEVfFl7zlbde25CA9GatBgaJo1Kzri8VAfN80ygPeUj6YwV3ULiUozoJI
+N6aMFzVVvlRhwGtxEDwRUvOlwtyGGe8U+xozSyCFx/3C2fItq9T735vp9w1A1/1QkATUWUqPsJuL
+e+GZfOEoiKeYN/775mosrlFeAqH//YLMhFc1Ny+ApMJyvZLFwbE4kdM8zFWOpaapxRcQqumhzxmt
+SOxXB2nYFIPO7F3BQmoid6PvFmsqdlwPWC+zXxNdzDxvgL0/cnmKzHs3YrWNft8mXfIvQm9e6lnw
+NjfgPjrSipjRybuaGvHy++b6OJvgftoW1o+Nbm/y/iUDy1dziV2kUfwQlKMn1t9qJxBNhWLavpmN
+x759f5Nrnlyjua3aivo5/spznhYT2SvHh4RLOGJ5FQImC9CDL9QlXL2FnwAu+bnTkk+F+XYADYw1
+0XSmqNtufrelW57xwHM/KV+GFz9LqNGho3bTjhKN8xudQR/O1nOtbT1alx+mVuatO1RfhOVBHqMG
+DJN4LQ6YW/q/f7yZWif8AZgdt0+JUIpXgE970L3xw+x5USXjzpKFzSOOQ2Sjx7R9MLl8VrfB8qMy
+RD1WmDgicIEVu4SK89FbTzn0Df/vl2PJ+X1X3Tx4V3gSb5RkafdVywP1+4XUslEPstiu4/YJ65Ww
+A3Jfcfg4Y3Uy5VjcT6luhFU/K2ciA9xr1+rdvTJ36NCYdh5lOyV3v3fn1K7zH5f26WutGcpZCtW7
+EiM/f5q4MwRQkb8vtZnknt8M/RDhmFoUZnesPb9PlOhYcf4eUZQLr5DIFA1Gzl3sDcoDRyY6EZlk
+NNl5rfuouTXwyLQD+L5diqnddGsi55O5GCVfGZI5d0P6bnc63XSrikFwCeNx8IR1iHPRPPY4WQIv
+1bRTBnIrzJS8uZr1QX31zIylbThsbfa+pRAV3SYmTpVszxZk3wH8UYIeJw4RFZ41Avyqd7IV92Pe
+cqpXFjB2KO96Kr8d6ei0qRLrBzJ2sOLnOi6r8W2Xxrlx5vupl99QALUIJ1HkSscLtWQLjm8AozXj
+cIxX/jHy+s6cugO3yLkfGuU5WT2I0fNy6vMMfBwGWI6jHXD5orgdBhLbGn7hddM30oy3AYPc3m7l
+R20qVwNVL7rQgzk07/YgbnEECD8tc87QX0V859FoyyZlJ8f5ZTDMbyYMHVvvByvYrYFm462wrE/I
+WedcKMfKwHWjT5cZWgDxPdXGaDcOnToOYW33b3NT0KdtrZrluL20tUepWN0Nor9rm/TTiSc9Uhog
+fBapIHtcdEdCUAKAOfRmtZd5qB86AHsRh5fVU3eJW99VruMbk/GU2PbRGtwX066v8MV4dxguF1bf
+qhsDTJHwy+IBpLwxfbVTc8jBH+AZzjHDKY0JtnJ5hrTP0yi8fWe1HV+v/tx5DvMs65qS6MPE2Zcl
+Un/2KuN7SM3D5MWnUer36WTuFKOIYuI/ELmicoc/v4Hncti+ga017a5qM2bnWfu01LnCAQW3aRZZ
+RcuUHP5ZZx4pzt6hNBNgZkYxFJlzbWn3FjKHEJnRHGWdA7fYXHCdJs/4VF5nAhXCBVg6tS4Fcpe3
+YUpfDJECKlUrPVU24ww1h3coVK7IVDQc1Ks+ctNWC4cW0LFqw0cfk/q5k83r1MKpHtYxixrFK3YO
+imYOdxYoP1ap0JtwdWk1CIYlxwVCHxu5gyFCK5+XBzm8a7EbWg2fRo9TJ8TZxRwC3f3JK2ZUhAmh
+TQ0PE7rAYn4qKLjfYTRnRwVhS2hZvD2ybcr9L6MaqRC0u8mlsz+640VVCiRJ3bhCK83xPeMBPiJg
+zfdebTQsospdp0jO2WaK6l9C8GauBJmrNR/bqfpi4lOctNhYQmKl9R2WIGVnWnZ61tcBEmOlyJdR
+ayHi4oK+rTEFhWOmmNsPMPaTLfOffFI1Vk3X5RzVKTi5Gyu/cYwxf0371DlljJESGlDezsb1Qp2T
+qWxbFWEO3NgF78hGZmppCTY8x3hGcSDDqaNuTScXFpsB5XDTCurwWCFu4Pmz6FjFhQHmDmEGum4u
+hiW095mEKiq13IR3X7RtOCdz+8my2gWguYtjIRMj4x7O1PfaaovFt5tSnC2BYdFP+rTcic5mEY25
+QD7mNfS7lt1c9+Ts4GpZnOfMI7lgTlzrVBiAoTRzbBrfxeHlE5cKnG4YS9y52sKoSFDAoaHAdpIS
+VW2j8PYrNh/ygWbUdUZcX6Q1GCTurJ6fDZ6KGR/D/WA24moeCuS8TlN+IM3JNzYv2HBVga+GQuW1
+cdv5S2cgf2zqOUdSUjauvw2tfcv6L/bOY7lyJL3C76I9JoAEMgEstMH1hr4cuUGUhfceT68PnJFU
+vEWRKq3VE9HTEd2sJFya/z/nOyOSoKGzeSGLmEgaPWcnqrcuwRXgwyk2WDbYJtPsD9i5wmFh57MD
+BIuu7yNW4DPR6/6XhBbK18RgoxcUGlrJJBXuGe8Q+7hROVeWYB3R5tJ9oCpq8NOzW/5wjCHfBVFk
+Pj5veVEyshnOS5fQHZe4lcemVWxwCxTAnrQHHd/JNM6IZZ63rSC5T87sONdW0rBWJknUbtB3UCvF
+7j1vlkewKjSWTArbtHtogLYIwVL/Ku64bA8J8fgjMARzc9KI6yTgQUOgtO2I2u0AoUy1yLwdMgC+
+DOOyJXVgzFO4Wzba0Ab32ObR+eiYhVjsc/b4EObS+7qKgusi4Rmks5ny9uTwJWXV3ExCaz/2worP
+UeX7V5NK5b2OPX6fQQ5YR1VPfycVct67tR7SWxSxsQivl2p1FNH2E4MDsdTMd5gCPnD0jbw56+2P
+jRaVV50scDrP0bgKZ4riQRkFN1Nns8deEjP0TNVbvZVeF7j2vdCa+Srv6KVT4m7ddahMktnmKXMp
+ekVyR+Ma37XdOfjh8yhMKJDI7heaqWgd1iCu/GgeTiN7a87c2bxtSPpeWyP1qjmICR4slI8jX3C2
+RRZ9NklGplWMD4PyntEYPyhhm2crM9JbGsANNX3hcrzAG7euMsknZva6dq3RFr+Zg8nRtwWNvnuX
+W7844iPljRUJSaljNo9RamQ/mzHIdlIBAqUAQR0r6ayB2ZgIrvsslf4eoFmyi4xZfpZSo2MLiTP6
+kdo64T89TI8bC8LgJg9U8pMDbPujUYU4DGNWJ6BYu+bJsFvAPIxZX+MIFqduQGa2tJ6jg+/KLtrm
+IB9Jzh5oHtWA2cI+oAI5+mlwDoMCnkKCaDZfWaXbnaXd2/7Czxi2dcJXgQpJ2l9KLS7P6VhV/caN
+rPhbI3yqCBNJEcA3e/s6c3rx1c1hZ3k1eOZbOwwF8QpBYJHqYC4VXb1GPeaUOVvGduDd1bXltV92
+96XSk5NROWyGurrVYq+pLD4Wx1woo0aS3udFrq5SvmALIHaBY1GnLYo4rTad687v7NtEIwwGAbf/
+kVYdlXm2+Ve+psWYvlHlr6gFfUqVEsE3l5M2J6m2M8S5WI4qq5B11bl24med25TCXuUdoGUJtDQl
+xwNZKXWgwNZOhM2Cni7Y/mobo5pAN0sTWgkH9KQ+usVgPNpGSN0ZQTUmRU2RhXSi/NatGntsm/Vs
+xAlYSrLTfsDXGb6Gi7h57Ay0ytqACA077yARB/A8ebtYTIo1i5D2MTYTTMyu7nPi6kqsRWY5BkdN
+mxF1UU6ha+6EQp6BeTnXRjbMt0mVZSbMSFdMiHFmdWStpqTc+7L+jIuIRmes21x4YqTBD6017Edt
+AnTui6jeRIZNj6psaWdyVGrSA8r//MBU+yEEKj1BdzIpS1g45J3yh5yGI7s7gJt+cZc819qtYE+A
+GKULB+ufF/cU2CPUcveZbhAdkg/TN6vqbqdZ6Oc00KgW2vy3Pr5+JnWVKI4wfbLhBcWKgCnzbkpA
+sNaF6Hd6FdibvnXwCDBR3SkiuHZTNCIy6sIKiVxonfrKVk+2CjSvWiajyl02lk5en1AImt9GwuK2
+I/uLY8aNjjxarH667gf5NRplf8oG2CboBmq6NNKecy8m98Rct3A98RhE2Tge3HEBaMyNQqeZk8I0
+7oYyzU9BPAUgrzVbPJRdB2uFb68/q7IhVMRE0EO9XTnDGvehzvXNFiDlJKCsj6A9PoJ67s2N6Zsd
+rUjRDA8lR4LvEnn6je/PxlNvdP1+Ig2o8AzDYIPr2+KTCSB06ecnhbm2R+F+M3mc0Qp7G60taTv3
+zGoYW+rcbvdEkk7fJUKujqo47BxvZAHQ9rMKY/Db4JYNAnQ8XSk6KXPk+/EuQ2Afr3zcQLXnxtK+
+oXzL5n/sS0p1Dr+9lTKTs68IzSOug/Jj24fh10ABbwhiH43OkFHMsnLrKm6l+Z1pRH2D7+naK5+g
+V3ZtRvbEtNbdYrutzpOu+i8NxBn2bIHhoNd2EM+4TbYdmy7Api8A2HhRwSaN/r7WfS4LKkueWxGC
+iEzDRBFUy0M7pe1R5E7+YPhj84H6RIYembbbhO0tUU/jHA0Ppib1exsZxKMLUGjT63l/3eRDdk8R
+0tnbqp6OxPAV10ZYBj8JF3FPQxAkvxTNtYbuqtueUkHw1MBB7BYvPseFZ5KM5PN6siscGePQ+dcC
+tdfiQO/lOiqr9DzKIbhCwbCp8SVgvxPZtsLmdabsjdDEKJBepBDDpR1hXAoC+DWliM1V586PdqLI
+J4QD/mXKC2tXOfKE1v02gSy8cku8KPRWg00jQHF6fd0W+8iqYNCUbIYz8OeffSAu61b46VGfop54
+Iu3erIzyrsWQfR+IAKo7RHCcwf51MEx8/KXWfiqN2vAswqIoIPvyOm1T+1Hqtn8zIif8FczmdB2m
+SUx4Y9hyKigcalapu2P/c82OJ74T9tjtCyNxbylOtV9lJ2M8IW3zVWpddfSnnCYrcipwugHIF2jB
+V47Aa2xjYqQvMPO3oJ+oMVv9jiLmCDam0Q5+3ap4DdRcnhE/D/sKRFlJgZmUrGyETmfOeo8ku9CN
+K63GxVxjSD/FzmhsOIOgaSsHZ6OGaW007Eq68gMWB9hxDu/1IKzouqSLc0wbs74FNmKuCFBqPpAC
+NR3ZsyhOyNRn/lklmZnwT+xSqKggAgf6ojeUTfOU3ZTOONiog8NEYXlj0drfNJPGEsl0bt3UaRFt
+qPdV2zbFg9ci2F4TtoC6fm4RWuhS3ig0eGe86c2xbM3whm50smmLcLoKtbQ50Eya95Zd4CQyQ3Iq
+NMv4qOBBnWZIQId2RMZESYLOcVC00bWdUu8RWT4ytdMNwMyBNAJI801c53IbJLl7XeN2OPWJG0G0
+0NgF6GN26NLS2arEzqhMTFNwCP2SHx7Evsuz9gq9cbczCZQf9XVbkd12bugSwKM2ejyg9CVKfBSm
+Q6zFEo63tjSoI55ZAy/38IQNH8q26M6Ro4DjsJVbFxJFDyQe8xhwcEQvSRsS8wuM3VTHFIlTQhjn
+gdM0CmxW+DQFTB/4fcnbTH0Q1dTsnm2ZgYzyhVUMZEWwYGRdVx5C5WK0WQJINFAqB1lW/jfHJhF0
+zkaC3eqsPfTmgnyvOqOk0ZUFKN+U4VLGC/X03g674IfF0e04hQYhEtPIfE4Bzb8xqUKdrMmgIj7l
+xucOUTvtZc7YOVY1eu+Uv5qYilpdUUZ0/OL2uTYX19Q9yVBxNqgbF5l6og8/TQ5On5+ZDMjV6y/B
+Qii3bIqcNGfcM8Wx6PTcNMirmloZMr+DrVGiLzgfUNWKOLs0BdR80goaftm5Rz9vFXr42dIyGqdD
+1KT3OqrMLbpyDgBBQmwWL6IL12OBuDwXRheP0JXAced4WHG/4+9YpWqgWd9OX3UMJ3dKMr3gZuKk
+qfCtRQN7TofQPI7kJI9pjaV9wOfXb+E+fdLth6hBmSb1+RaUwdIQK9c+CKslHc/2BoJbb0fcXl5l
+DndJPNZbkF/RFrOv9CjrVUd0U/ZNEOrO2ujYDhjIR8m7aNAqNrazmzX7OEnbXqG2RJhYZuwKfODz
+iTY2nk8jADBNoos1ASLaV1Itmy1B0vO1po8Cdb1bncbIEmwDucYC2fNew2PInsOWt6Z7nCV7oqYk
+ZHKSzvg9cHmsHdhtwtbwgSYUW02XXSqrFMcoEA7x1+cAzySbqwf2Ie6ZBhcCVp1D5rPYNq+4sXrb
+Bz/qZMFrODG4k0ZS5ewJBU08EDHLkksllzJmdLKcgbNk1KFSwpRbd+t4DC3/8f9ZinX0vf1dbi+k
+seA5/2eRPtlNL5Ob/vUT/ynQV6Q1g1TCO4wWH8go9v3/FOhDHkAtsRBl2QtZSPH/S6BPahNR4Tq8
+FguDN2A/2IsNkuXw3/9Nc/+BmB4ouW1zZOCH/kqef6nNJ/bJdYRhc05RNkWiC21+P8+k5nb50uvR
+APmziq9s02o3v92R238iGX+Hsl8AVuFmMQrpU/gRIOkIccHnLRAuscTw9uPxROvQadDnyC14CjDH
+rkmM0P5JvvgfSb1/XpXUDe4eDh2QglRZXzoOUvTb0h2dmpOfC5vaGcZtmGIYe/uqXhvFZH7gqEx+
+NvuVl6MwpURxrTNJxlYoPuvobw+g8ub126P8ee8gtlKHAn6OhUNeon/ripWrpaFLkh8Ns0ULTuMh
+qaXsvMKdaOgb9EA+vD3m8tR/A2vyvKTB9gBsvIMDiNSwl1dG9bmCSIWLuKgQkVBDk+u+Ib5a7xz1
+zuW9MpTiGRkGn4YtlMCI8rs5RJAZXGQddQXARySduvm8pUxBHzXO0uPbV/XKnYTHwRdlcxt5bBdv
+hSxVDoYaIBA7ifiAWVRh9I7bs1WY7s1QM1W+Pd4r78eL8S7uIskjc6F6xqtzYy73mUE9ahOjgnln
+nNduoRQGiSuCyyMD7uUtJCt7niIKsyjBq7BfxfEcT+s26uYnM+irdwZ77SaiCiXaiUoJROqLwdyq
+Vk4TT5RDJpGsu74WbLxQOUjLoQg+Otbq7Zv46sU5IFsE35lkmnx5cT3EKAd5QgUJAZ2edGP4Za2w
+2ZkhQnp7qNeel9It0+ZrRuMu/hgq0saBEi6nEJ10pdqXWwxKwfrtUZYbdPFtqd9HWS74NzdUP9tl
+3RhckJyLmzC0g51Dxtenhd1+HlA9fKqd7svbQ752D38fcnmmvw1paFKyp9Erb6op8rYiVddNPCPV
+zoL6w9tDvXoPDUs5SkJkQiH2cigyOsN61kLoncS135IOg2fYoZ75fxiFl52PWVnMwBej+NK32Bzb
+lVc0dA5M6rHbqC/U7u1RXnvVlUN6I8GGMPjdC/AOjbmITbGCeFa7plo5bpocU5X5v7KyCT+4zFft
+Ox/Xqw/KUUyHLn8ib+LLuxdDmqojZaKft2y1S/vuUVrWN1EJe/P2pb32mGydNOdl5XKEffFGKKmH
+wSCZMkKfUHOKKw4VGDpEb49ySXpnHVFM7NRUgUGzkJiXnHPNAUYmcxCeJmCOJgf+IQHubMqyDHb5
+UADrUHLn+2Q7mbKlBIPUi+RWnSPn27/Jn9er+H4U6BZpYB10Lj46FH163/esMgYB8eoOSnDYHNCm
+Z807T/CSev58ycihBOw2R0rj2Qz527c2NoGzIFVqD49iQu0HE0KFn2nRPV8FShuP9EKLTZ1ghzIZ
+fzXS71zxDFqjdQ/dpFXvbIX+nG4gRhl8kS7cCoR3y5357fcZJvZHWj+SPq07A4e4wM2UJ1oUZWvE
+dYIyWN0rPBhtNr7z9F8dGbwAu1cXDrhx8fCnvnTnoGLWGULqal2QCjRGvrbL0DRM7mMRD9X6b58y
+1/rbiBcf7CRMJJAGaxNZwg5knjhB9dDlf/0uMQoPmBtHwg58yJd31LGH3GRHWXnmRCiV5o5ktlm0
+VN6+lj8nH0ZRJntYZRoKWtTLUfKCpJrGXsysgavuqZFWGzNp4p1OtNM3FJXz9u3xXntaS1GPXbPk
+O7EvxvMTqGKpZFlS8WCV675ytJPw0Ug4xK5eiX5y2/UYsAt85zrfG9d5eZ0IQWj/FBaprxlV9Xgo
+ikMZdjNdSq0+EaZIcwbU5TvT32s3d9lt6qbOBt4yL6a/EYdolUIooXxtyC9UgMdug+wp3qGh1qHL
+5Fr7+e3b++fM7mKlX6zWwG4wP1ysWB0hlzlcKnKtffrVqqoQbWf0NMCy/P22k600OxhlSl1fIqhe
+3tHEmudkUGTWTMSgbvRk7rZjK9/bTP85o5ITQrWbIygpWyxDL0cZAqGaUTF/6FHqEwEOS0NRNKvn
+6e+f1YuBLqbunHJNYYmp9DS7HHZmAuc2ie07vUokvUj9nc9guTkvd2fLudomI0Owd2fdf3lZfMcY
+6EKUsGmvN8fQQZKBE0MHRiSdTWkrUO4D3C2MPrD7//5TwCpvCZf9NQdy8+LB2cnozEnL6j9rrfuQ
+Yrm6IU6qW5VCVoeiVjNlfMLt3rm/r7yZrtA5KLPDVrw34uUVcyZRsFzpb0qDBL0SsAMePepYkQ6l
++u2P4JVvnUCy5901rAK+3ZdDOSUsJiso2VCFRY/vpuoOmdnKY2S5Yt/6NvzXtEIF//aorzxSShzU
+HdiIQE2/zJ2rw0rMbcuoZkez1kujiIDgqGiOdLC669FC3pgjml9VVJjfGfqPj2RZdNnHCcMCsyAu
+P0XsKHkJ6wTbDVH20PByc0stpr96+wL/eIKMInWqA3yKbLcu5xaUHRR+Z97ZGQAxtFkwcWuOuGDt
+Szv/J5fjf19ZWcZia8oJ0KaWo198Hwld1EiWNCsTTK4lxW5tfsKek9rvvCqvXpNFBJfjUBlYGJov
+ti3YSktn8fvyVhK2iV/MOtFHyw7V2DXvfPKvDQVZ09JNwsZYaC+GapeAjCLLGKqiJ0fZQ1uX80R6
+sz7t335Qr70O7IX4BAwKs8blGltlThiNAu1TDZZ+U2vsdWHPV5u/HmVZZvi8uHm6bZsvb10T2CEK
+IrqpqaSWr6sm9MCpOe88oFeuhQ31Us9jDITgF9MGX5FBdjhWuCGZ3BWVT+1b37n5e2fyVx6OSe1Q
+Wqw2inVm+fe/bV9t/GmhFiSkKVfkAbUJ8Zcko8XY4tx3kuZevaDfRrrYE+TFVPnzFGN1Uv0nBzLv
+Jhd++c67tvwhL5YXlw0HqwpHA+Zc07q4awAhqqwwCFA26Cueq3isHjJzKA7Igi2iPodx3L39MhjL
+n/jHiMCnXRO1vCS95uUNBOoXp0PFiBYqtW1bGeRm5/jZSaGBgAcZJdwjsMPkGEl3B79A/NIm7djI
+HI+vOST3b/86r91kHqSiDE5tVlz+NqEuQ8MZeWvwZD7ZnaZtqlD179T5XhuE3CJaxxTReW8ubrKq
+BgCbpYSlGKEaWk1DjJ290dHNvvMNvPY0gfNSMsJfD1Dn4pXxrSTXTUInlkhXBDChqfC8a1tD9vu8
+hZ719/fOUbQMwfArYo8u5ilIfGqEFApQsZX+Kenx5pTMoOv/wygUOyz2P+whL4vadmrX5hQwG8ZA
+uc8FbqrNKM3o7x8Rt40DFLMhD+ryzpGDpNElDpc9qh1epwM5vEYkw78tE7mUOBZFFysWB6nLcooz
+9xogAt59vJvZVTZBrSh9/Apv37E/qxzLMPRhJRl9UJWeSwK/zVGkIBUS7yrSpM6PztpE5otRpcdi
+kK6n9P7aGeR9qek+77rtn6h1H8G+lu+sLX/srfglDEostAiotHBjL79zvXPbIGUToHoBeHgMm/zW
+QpvUn2U3DBCfBzeNDnVPauM7L+YrnwEnAYc2i8lCjUDt5dBaEUq9y7AuTxm6slWoK3QIZXQ2rQVZ
+2fj8/e07/soHzsLD7EFGp7sEI74csEMOkmEVYU5b9JUDGgvk5Pic3h7lz6UHDA/8KMEbtKSgXdxR
+6s3BWNs8VhXSHk4dslWmHKyvBWz+nVfozzvIUA4WcMHZQxBU/vKCmCuVXkvuIKpICEdTkcLb0+fQ
++Og2pvwRDtngv3N1y2//cl2AWi44+loW0xdL7Mshw6SSIxpKrB55pq0tt5Kfqm6Yv1Wdna4NIxff
+KIGMJwRZxT6rRfP09s3983XFQMvpRVFtdyGXXczR2Dv1oB86XL4pzKlU2T/S2n6SOcUpqDcZHuT3
+dpR/vjTLiBxY6aRRYb088zdDFCMpB0uSa4JzZNV1CNb69/JPX3lppE4vd9mAUbq5jKSrZwJlcnsJ
+BUjR5Ui8H+TF+Ub4oQB+EL/zHfAqXjxFCmsObWVaxGx4LEK1Xz5FozfcpjEnOEQZCrp9x3T9UwuB
+va5gADYPow6KxIMSA7J1Gp2pPItJlOaOrT0ac7pkRYUp1a1hmvD9IObXYgGmEP7oit0rPIA8b4r+
+4JpzmuwGn17ncXAa0B5IkKdiP+RNGe0ps/nmkZd6Co7+sOg7CXcxijX86iAkUigBjLQ0krrF6djl
+tyEixfJgJiSvETweh9nKeZa4jrjrH0sWn2RVp9gMVwCasJQXdg/JLFGQlu/ls3zWdsAl3zU6Ouq1
+UwQo/OgGIdM9YcLEBQTNYpx2RM2i0WUFSH5kuQ83VAxwsfe6gR4aOkKriK2p+oV4yNMkLY2pDdBO
+s9hFR4SmaysWCOoDBxHUSjUB4InKTzkaTNS0ow3ur7reqLyP633aGMm4CzLoYZv4WfFcC4E9Yeg6
+9gBA9vT8qKkUZIUYNPCaYdSOCHMHMyaYbhFf4xwwH0dcqRC7SnZyayvMDDz7TtZCifPnIdvRGhM8
+wrmgDjL+UwoOkQ3PUUgRY9tTFCTivXej4NjB6pXsYQfAK/ow+8OWJ4DPONBnDe14UAfO1qnLDKbA
+MCu1UWnVklv7LIMXfPvFpuuLCEd7RiZHrnuzQ76LN+fcTjTsIdlHVgbRzkvk1PSHQCNNdUX+BrFw
+aT1GtucriEfXYVbnOEbypsEE0KDK2lepgqXn5l0MbSiKM88ojAFcUxhAUOXwHB26YdSmc15RVkKq
+tzjL6xydouc6efQ5qnQybQarJaAwTudpGxUTi12U5v5XMvRs0siKqMvWkDQAGoSDbh1h4ua/bNTr
+uLLT/lc46yj/EOvgiYGrYJPbm0AKSCDiV5u2rZvvZh2RsEtJNn1ScuLUXkCNup4To7gmxio0d1Nt
+wmAKrZbcnlpicQIORlgju2gnP85i8XXMgJse4a7JYN13g/1tcuL0y9C68pyTrHubEU2MLE3xDD2C
+8kaOAAmEmQqJ2q1FdRWmn4Ez2EOgGn9KChcGdSpL9ymtcnIW8ijDiWK3St3gZ4yIolNtfOfaztTt
+5BRC3GoxycXb0nWafFPMPUHLEl996BGOBwglsuzw64jH5pece93wJLjss993M9jScMR2WsdksuEZ
+HrJkK41qvNN4OWBitGqE7tTO+a6z7Tx86I0ywAQbN7BaSCqzG48+rfkrcjPKVaT9oQbTiorwB4u8
+GyjFVgey15lg53L4EWjAguozWmyTjAOyNEA9GUZWQiNA+QsoLsLcBSoqEGu+lPRmLEu9PpsaPKu8
+dRSYDDxbtqfFmnE1gp//mcwOwQnVXNf1F+I13PErO3GZnUK4gcF2zEQ0HLUsq8qzJhM3vRdJlFZn
+I8aPdVthmJ7Ogd6WX2YLePanAGmZ/71vLaE/iCrP+i1PyLHvKpupc2/5wEq2uZ4P6thGWt1DN89q
+uE5Y3eZT3gsxLp5f2SElc+Ww1nmCLaoXwfWB8lKBcWDRGetdrc+B2iYVUQy7Ssv8n7HpAxpJBkKo
+EJzVaJXt1O2aVYPYiy5RgLz/W2fkBpkJrI9asPdR1Ud3jkUf+wj/mR9wfStWm3Ek5+zg+qSw3YY2
+3Z4vy4tg/oysftTh4BS1AOGhg4YY7xI2iPlnoqKS+CGfZvKRWAEsavxYWtLkkx84rZ6jCG46JPVV
+zOKG5UfWwbgQmYbSJ9gMo1n9y++oBdzP8DTNE0yiiSc/oF1lzpRJnNxODjGimBz6ZLiBlGUCbxJE
+hqz0XsHQDXqTiyowSFE9sIJ6FFeNX5f5aaiyJREiIDfybgjVYvewbCZiNivQ3CpRlAB8ujBnbxu3
+xWeLVD+IZWYyzThhgqA6BmXG0qFT16PQGAZJd6UMlJEPI6cP8ay+Fc65TuAIbMmddgjctNysviGL
+kKZvn2SIPUsn8tUKdWpcrTqOTB9wEo83OliwB9M38L+VpjVMXpE16rtCCQywxpeUUDU4v8VqQkTw
+OJszML9ApXyqrQ0Oj418iTAeEGh+xmcPskQLlZOtMmlotzFlfW2dOB3wgCnCNYUGJxw+hxr9wU27
+HP02CQ6b61SroCtRXtSRKBfxFxCr5I+Ty1D/HPnpeWUQKUR1XiGGXeHQCAgY0SuEV9Y8xF8ptKT1
+1dzYQKf7ifPyyrRL+r+s1ZgGem10byaSYd1DrhnOfZGKQD+WYd9NXkfsw43sbQvo3BgySdtl0jtH
+36mCcDU1cf7DyhMfRXueVz9wMVg3EGaMZo3zrFProgen7MmhyD4BHFLg/Pyq+JLWcUfkYhoXD4Um
+0axrnV7QEXKD9Nawp9H2RFekGRqkubGWno0/r0CrZtBL2y75iegknFZxSuYoW7oC2nzUmKl4kmnZ
+wFqdgura9XMUp2RRQQqLLdvGp8CG8COH3THziikTDwS5DwRDhhkAHGKrk3RjdaL55phJRwSWDbXT
+M4sqeBr1RGYek8p8UvNUPmLZxZ2YZBNkOnNK68fZMTDyjxMuHjWboLF9Obc/eqM1702BBxETVfgd
+c4v7IM3cfDQrUOurIQy0X2Y7dLcUNdJvbc807vmBLIVXkpz4fTJ797urpREJYiQfPloEd36rhyI5
+kpUNMai3nOaHO4/Fdxo/AACtSRDrzbaHzI8YzC4JBJpTQd7EJLTTEb1+igKEyJu0MwjyHJuCSkwS
+QXj3enMgpZQ+yCw2oeMAMgPwb2u7PO7iD6h1MexiDJbfmlZCXMxjM6hXBYU/i0TbgV2L0wF52cGS
+Suw1va3omqRXNewtNxIhTgV7iYHTg0SdSYulNUv1nTgw1iuAoB3ApmxDMzDtnwZ9SskWjiYJuCWa
+1GDchjQweIg+xjiiPpq4vPHxSgjPmpKiX7XQlcQqFci41taM3NpT7pQBRIttdj8KC+hXd2BRgMs4
+j2vbbiJCCIUe+bs0WbizYo7ip0raIxAKaufwtGkFbaWUJT6cLEvEqgycbBtbKf9oVsDf8Aeq/smM
+jeBTnbDZ2FsQujGb6f5wgoM6fFaxA2DXNdLyJknht21tESMMYDZV7ZYUUJ0znjuDIyiIh5ygAGHX
+8zTcvKjT6TnJzdxl5b2MO52MVxU6dxkeHyimSoOHm40LoYNQQnXbadyYAyl2JZXrAFkx6vmYkJgg
+XGqKuibL62rWBUG5cSYPEOVHnHijZvXr1O7I/zQ5cfUecwvrQjNHQJFZ9rQboXwfIF44NEeCUgNr
+Fw+KHYFD7ItnirHgOxmM4DEMKttYm0BWkw0fqWqRRrPurpUdsQny89w+uWlsWzu01xrIBD0cUzJq
+3Ppra/Ux0QgkTs5e2IRQUVMcDj8nWfUw+ro4uDNH3f5qaUZaAc7Ctr9WNMW/zG2AWUzPpd5uY6yg
+IBeKpL02/Tj4MojQZcMxB/pDljAfs2RMTFV62xGwWc05mn4CbSvSoMZafgrH0MZSbsbyXDt5cpf7
+iAdXIS6x+xnilO6VWjWext7nF+rTAK+yaAlU7PHxirWCozmu0A9hDABUFd1OlRBPYzQiDRjHtn9o
+SZdh+nbcmDREH38tABDoObXQpyeScMDWJXYPO43aOZkRrqNSDOzdMqeOsAaSFfZX/Tw6qgqj7/iS
+S3QGbE4xxxLdyonNApwJuQnX9Ya83+AHGUmpuXVI3im3BQ/I3Voqx8uZ9OmQrrmT2T2H4+o7ToGl
+bF8YUbWdStU0exeCBa4RB8n5quxikx1LXafTdppyWhSqmcQ9XpiA48M0dkS+xkVz4LLaX6kwq88G
+5qubqYhb25tbu/gJ2Xn+Bk+CJCMke9a4NkMbX3oZl0RMUoDmaxQoG1jGRwunEQayO2OyzA+inZkc
+2Glg1EM2KT/Uk8MepI2Neo0i3r/TIfsxC/tFtnfbOkuvDC0hnaAre+26TDjFkl2BN3VKXSfYJ5Pi
+3BlP5UIKCH3SAE0nMY6+iVqRnFZreTWcVt0O4Wh/dMrKtIEFlvnPXo+Hh46InM/AfXAi11BITnGY
+Ym2fcst+EFE5/iJ9s2OxbH1117N3v5qG0aUQJfhcO1Bg4UrnLPQxNWLUaQnNgLsxJvR7FY1aQZpp
+M9/3eY9yNwBG+xmtLblnxH/0D+nYDU8icwdwluxaDg7hC86RFXBycIQi+4eeGWfFrtEKlq25jJmK
+ZvymGNJyvyFBMXcJGJoXMAcZAtSl2xIJKrnebux7Iop6fKRG538h4KS6D6yAgEy/6/NpPSHMnVhp
+hO8DSawBJFu9WFLVqOXDAOBTgeroxOM2rUP3SbgkPOMGA3sHwDrCWcKuPPyWEtiitrNVLkUCJ83v
+ESmjMiJtIKk8qnXk9tYtfvmNU1F/3iCvwURMM5/OhzutHLr8/YyvNe1zHR7lnLAdB5Zr+z/YDsfD
+lTZ3Xb0fCXqqMQwpWT2wn3Z1mpxtrLaoRC2xgeqFlH2G2bsHfatNn7uhS6gO4LRQqwkH0LLWAfYj
+zcvQ+wPH8TLFUyT7D4SxEz3Ny2b6q9SXiifCKxGv02jJrNaTJb96fs6yTp5zrSn7y+AME47Ua3zT
+uTrh4mYpRRUru7Mol+hskuHwGltu2gQ7CTLiM1l3fCRJ5kA1gIQDlXlJ5p6GwBJe9Bzands1W8Pc
+1LNPaiSnbV1BnCFTlvmbddsnFIMiq8KXaSF6fCK2rU5Wdojui68gdz6pJJjJIeNI361gOo3WyZ27
+csbpa6VAh50pFdsutvtqJd3M/5ENaRuvSF+yYY3HMIDn57R0lwiVGjLr0kP0jT6WK07fxFqNWht+
+aUSHO6qIaBSwtrCUO+sgT2OBlydsiP5yKggG6jnnXStmPD0fSbkFavdcPvz/eIjf4iGEpMf+W1V1
+/bX9+q9/ff01+/nv/3b7s86/Zt+678VLw8rzj/3LfiLcf9D4Q0+6+Lzochv8if+yn1jGP0yTuraN
+Fh59q1BUpf+VD6H/A7cqCxdqDVMn5XJRDTb/ZT+xCMUUyGQWrZiLUOVv4iGeG7j/XYem2k1X12Ye
+MbEZ0Ny6VKKSDT7lNAXvTtunm2DjHXbeYXuzPXjb7dX2nr8O3o5/8jabTeCtjvvjrz0MYe/Xer/f
+/xq8u4d3usDGy1L8n7/PUrj+rZljoROFE2jcrb+sP2x33ma12b9TeX/uh7x1yRel96TQRpMy5N36
+an/lfdmut73nHbzH3da797aex5jr/Wq9Pq3Wp+3dytuc1u/8Bhdl4z8v8qK1kcV1Y+mxcXe1vXk6
+bD9sub+rr6v9cfXwzkj0FF5UqP8YyrnoPzdMhX7PxV7xhE9c3fJcl//x/zdP26v9+ubKO1w9XW2f
+rm4qb729unp64jfyzruDd3+43x12u91mtzt715v96rg67XkTHs/n1X7leWdvdb3nt17vuWH79eru
+tPJW3n5zvFudTusVr8s7Tbb33g7nQvvZNnUqWt6O7fruy7ebwLvxNo/XK91777Y96+TfeEeci8J+
+0ts0EXhCp/XV+j/YO6/dyJE0Cz8RC/QGWCywNOmklCrlpRuiZIreBT3fae/2DfbF9mN290yVeqYL
+g70dYExVyWQmGRGM+P9zvuP7x2umxJFZcR6Q7qZxr7lnr8wKlwt2XL/CNzJhNjcu/7Tni+s4Yjwx
+ndwrly/xp3Uw7/fbK/5/d8u19A/e6ch1Y74dN+vd933vytts9gHfyN8PB89bx+DmyBi53qwXNHZ3
+3DF+hvu18bkjF3wjV//peL3ehGufn/lhSfv620f+0Tr2ywH0qbtI0lQlWVwJXpLPyLtzt0d/f74U
+Lh+Bd8V/vF/cAO3c3furG6D/vA4s1jwi8eNOP3E5j7c7b70I/MG/9r2L/f7IoHth4O75r88U3m+D
+oHH542bHJT36u82Lu/GfNtvN5sXfX19zO1jTrm8i131khdtwFblPwYEJ8eTeeAf3PJr22/31/uZj
+H7kfN+svfb27fkncu8V9jdw9w21/c3N9w18/PlgpNy6T4OqWScv/n3a3we3uOzd2t7t17272+8l1
+I3fLrHm8vLp6vDrsgvv9Yfd+e/KCrXfy/KMXBLe+++1yvYOMs1tmixscDpcsAocdl9tn3TkvRHzy
+7yxIR5/Ztdt5fLw9I+bC2wVXjITzNz7c8s/r/Lz1L05PT75/673/YhysC8Vf3ZBPPdK2aevYWm8I
+S8gTF4KB4F16DFRvd8F79bxfPQnOEuu/esV1afvhUVB0Nrvt9RWv9wx/7/tun7jc0HWgM+Ou+ZDM
+K/7KdOF/3AN3fv2rf7258+/2N0f/qeKmb92ni9d1/vCGr7fu9u7rsK7wTNMbBo13GzDLgtoNrr6l
+7oFxdvB91fVPrIQvjnsfXK3z2nd3fsCjwD2sq8EvZtgn/cKfl+hPj7xQwU1Pr/l09F/u9uvUv/3r
+W4fm4hf37tMTj+e+Iim8wgUD55oFZ30OXKzXjk+5LkAMLQYS44uZw0C74FIxvFm2+CvXg6/tGJNH
+PzjwR757s+fy7/gqzw/+zEzwmFM+z2t+Jb9+/ZZNxc/v77h5LBbMvfOCuL7ifuO98C28BdfjLqzf
+zl8Cd51OO16X7+U3ft1e8+uZAvwqpvJ+H6yr7fH45PO82t+5XCh+hofROgJZOXlz/Dy/b/1l3iV/
+YIk48o6YiuxquK8PwWH91uCw5/5fnVctPvVuW/HhubXuJtgxntd1fl3DeW9bfvLG+8ZvZdJ5h6t1
+aq+XiQu1/jQDo2DF4XZ5/PNf37L1lv996KN8ppCgIoZ0HALROYd9emongFeJjZtjytZTdBWBAvD6
+sRgupNgYArsIOTyXrfyLF/15lPz+oquLEV3cqkb+tNKnRCBTGZ44c4dqdsrqJQ8WGge/eJVPHfrf
+PhpbWkTyOGrZeP48qzVIK3T4+GixPSqjWzgS+KxlBnMjg8D5xYv9g4+k6CgO1ouJXOXzfsGghGYt
+5Lm4ypyMHrj2EC6vUWz++m79g4/006t82iyIqlKJaudVhpgwp2Ks7Rs0hmkQT134rwm31qvHWcFA
+v4raiDPAp5fqeyU2RchhD1OesQV1S1xrv1i/+kBnmdnPAxBRisLJBYUIEc+fFTHkQ8kYuuhIqA0U
+IV+NIbQAsVmkxxza7IO0+l09InEjaePIxnDs1EHt/KYJZcttu3x+sAlOmDww8Wm8nyEhfZvhZ6CL
+CuHJ0kLv19gukiZJb7ZiE8iqTaVvOy3TmNJ1VAzQhLWcFifO0EQTWeWMxwE5mw6/V6I3QZDLquKU
+a9i+Xkt7CyCEQtzwSgYyvi/V2JdBUYtiNxNvAcTXzHDy9GGjK1snV9uHkcC++KCq4LyoAjH2pn4Z
+3wFLOYJeQBgTorIUECNgsPSUDaVOKOTyEk3ldnJbAq3spweNCJMKkMsy53D/V7FZbI7MHs2ISRdC
+wzCSoa2rWeXaIGSAkdDUBj3hQP/wJUHxFOTHoudeos3FPYTklc+mx3AxK5SBIlgIeBiJfBS5CMg2
+dZ5IrmieK2HRr0e3ShxUmGhUIjB+1E4gxw6wmEwaVS/t6kaBRqORaJBlpOvC8oEVvsi9TKOMdO7S
+KxGBEumDllvsTLmgxQyYChJsQ29deJY0D8bGakR6ygcaxi4AXPO7adbK9yJtDFJ7LGt2jqs0WQ/m
+XkUxJTm1c9Xh3dV2QHGoxdVIApEykGJ/TfQg8EAw+Pq3Uo0IDSEd6HllK73CrcG0bAkbbGwjdEIg
+BlNOj7Oi52agk2PV3g8FMLSNWeoE+HT2lI1eOhnN97IbBjornTMytVW9TLA0LsutyIbJ9DppfQdl
+VsWX6TjpElHXizb4Qm3il8x2siulrGBdL1WmQ4yOFC4LluZBgu0zd8pGc8b8GeiXSk8LaNBxoN8B
+M7YpiJagCOz4pK/bWIhAWQVOjl9jV8BeeqT5aSR+we1aQ+lp3Hp5USHCWAX7DcltmXNbgHcRm9le
+RBlAakTVNjLgP9BK2cciBapFidMGm5NltKS9fOy6bEcC3/TcdEMHwElxistZIlYXpmpjfdezOqIb
+1FRdeaUbkaPusxbLkRcq+XCaWUfecoV+ttsDygLTm3TFDb0Ikd1NA2MEQdIk3U946Nx6IoXKF4st
+nZpIL8tA0vT+kKEGKze2ZNdrzb7rwNgxi4CPymgjqqRxSCagNM1cBJq/pp2Y4VGjIULGYQFR26tD
+NQcuCtTOcGNdB5UjBB7endKl7QnfL/QyAKnlSbYTutumUg4xdGyrFZc9ppQiSKWikskfV7R4IzqN
+xMahqx2ZDroFdGtRnfo2tAvnMZUT9U0JwX8hMqYs2ZaiL6/EOFKAFUBic09Wp9XfEpbECGYO0TIJ
+HKOvS4N8eMVQZs3OnhL1pSFCnmBDEqXiK0LqykthoX501aGXb8pFYqmldUS0im4Wxn2HccDhkZXD
+mR3JqLxvoeFRbW30Odk1KfQ9BCalgOnZr434kTVlcSUty6+6qiKjsJ7ivvFbyK8wvS1iWNxsahLH
+oxMQPdMiaJ77EMLlCkMt4yCK5tGgp1shzkLgGr86TT0RSqiLvvCrOAnvaNCSl10U3ImlxuNO5bBe
++Bd7JIMo0sAHu0tqKbPHjIrajUmOJ4kCU/VdrUkdC+H5IUiTl+kOtYf5DqctfMCQ5HT7aIZ4QI8q
+ie6cQUte8GXgkbdG9N1aNEvvjRkN3whWAEsb27J2q+PsI9NcOMkbqFoJcbYWSfcyU/JbnFHRDwwA
+Osc8E2sYghIWdBQHeMOIYZLq3prs2PAbW2+F15pRgsgj7Z9D1ikae9FI11qQxNAV/Vz409LVNyR3
+aacxT9FFmXpOCbqhJ3k1kIS8eCNPEECrhbDFhrD3Zjc1FP/B7YkB7RhEvHpTo+SNvaFxwnvAXuEc
+wHO0P/TcKG7rxCTcL4eXljLk6d9vk4YUaSHNEXDwruahlfR6eJWQ/vux1GXb04sKJ7p8ukP7vWeW
+72E0GfeSTAdi0yFbpFtW6+VhVaASLuQo2mMZrThfXW76K5K9zGaPxo8MmrIs16tJhALCQDNNqKCv
+WD+S2205UGtioo9U+y/mTGue2nggfrkyp8pgdW+hsBopDE0XlR8+jchuwgtNsYzmIA1F3fFEkyfd
+VVIoyIaGANXXEMvBZzINRSfdaIDNW8hmFfuSbUTEZU2pCRtBBX0/TrkWXmU9JPKaNVN2k6YXxJ73
+Sf+Nhrn+1Cojjsq0pnrtGqqZESSxQqa1WIGKJfPWvATk7HYZKgMw4NK071Ky5DheBRmYgJlLMn2c
+rCaBfagRO3kOXfQM1BosLQD7EfOnQdVf+I1kRW8sPIa6lzN5JuUDYiao6BjtVAjr+DUaKJu78lTL
+qNUGqFm6QWXczUyGm5fMRGH5c8FK48kU3CcCBkrCUUYM+BlLRRpmm9BK+hspdnhG4zaEalwmi+ls
+FQVEHVvy2sgD5Cwi2sDuzctDBBy+dYGDpiUoSTW+s9oZQ3Jdtc53ydGn/pJfFd+ldjiBOe+kqj+m
+qO+vBWCvgh2wIIi2nNWq20ZYlHLyPg0xBRDrKu75UkSgEWkiomdQcYfR9RWooOehIKiuRfeiErek
+tiRdlsK+VroZ7lmaR0AKARGCdZaU4XZGoBNuEOwo9yEDSdmMY0r01RQ+OtjA0XuUGh9SqGX2ZtWF
+pflTtcT3MzEY9yhGsutZr7UT0dj1lgE7bAmmlWw/r2KeDxlEewyS3PIO88rJltjxuzkRAJMXwem7
+Ldsh6z2kkQQkhiVDpQ5JW/VnJQ5f0rodlo0ppPRAj20AOV6BBwgKvR/pEdZYMbyU7pzhgj8jpqdM
+6y5DoiUD6y6TmZ3SHBeR4dqZJZ6ElfHMRMnJMLOYfIqHyNa46o08mYKlZeS57D60Z8LziEbtSSSe
+5opRR1IF915W7ePQzuNHVdvj3Uz3zPZqEJlgKzNae17EqL9MbZG/6L2cvRNDDxtdMqHByaYgONxs
+UEx5o+zQBRyXPhl+USP40zmGq0bKNDV6LIZQFD4d4IsGRFQRW0/E385+o7EZmsws+8WL/OkYs77I
+am0xeCkOTJ/rLVqiI5ng6cMj0Am0RjMOGvoE5Awi4WF9PjP9u4P0QwdpdbdTof7n7LLbDxEl9ceP
+7aPff+b39pFmfllvCe47qADnk/nf2kea/UXV1xaRg5cL4d0P7SMQZazWDgwT2zGBO5Ha8vf+kaJ8
+obGlqpzfVlufLf9/+GWcR3lbKz1KXRFjiDJ/Ps0PKVrXZhqIPMoKpMIie6ZX+/zDNfkHJeg/Df5P
+r/Gp6K93DsmquJU58ODdjGYisBD1hL8Y/Yqxju+fz7yYyBTT4mNYVECMT2drjJoUC5Dts9rmpeKz
++a8QKZql9F5WdvHSC54nBGZE4lm3EnOV0oyt2OaT2gEhjWKy4sIYnPquGwoOhumsxhj5zH55AgA4
+p64h8uy7A+R2vsFe28zBZCryzVgOmo1DqsktMn3ISon2EfrKxSfxrWouxwzxE7hFsMzsN0hhV7ZS
+YteAW+xG5qiIwPPRIkYsdZFpFMaWOkrrEF0kx43LeyF0Gf9V03shh5bMhboEtlLEhsY2nABOojJM
+KyXzUVvPk1Cy9LcaPQj2D6us0X1lnXGHQrLmUCs4SAM8s0hwG7h2IdrnRiGrKLVQUVmoCsQoklMq
+c7ZZnwR14xWW0gsPBaL0WHBpF4yACzgsBDLlQngFGfEklxZIeOJsfc73Eskjbl+hgvUdZ1zm/ZCk
+41PljGxpGshht3IZpXvVmLrcTZzFOcItMxtvJGCFXYewi/1QZ53sFhzMH5S6Rhy8GDan0HJoh8Kf
+YXN/M0mQMDVnfmRzhQqLzArO2FP1DUFod6fMNgpyq5En8pmkJd+iPI5hxZSmIKJ7Bm8TgKFTSxcQ
+s83W2pLiK4MXz71xqPJ7fe5G9HcyPOSlmA2wdPM8XrHLj8ZLzW4LA7dA0scbbNXZQ4K5oPLi2ooe
+ujlRIgpUoof6Xeja44TyLXPR7hFAj2r9IdSQgvrALdXRxyZaXZIDTTQLspXloHWh9FiTrcV4nVry
+IxAjOCjpB6KL26LLUzA/+XLSx4U6hBgBm5JFVBixB+SVoHhNmZXcay3NuW2JLfgW9aiaPYUzFzkj
+/aB/Z9sTkpZQKwhVoa6QmkZJPrLRILYYLdsegU3XFV18iUE+If6jQpeniM4+jYbdIuJVEhDClgqQ
+SkJxrV+EaMDIUVg6O6XmIvVvwAHj323//362/PhswerIYvvPny3/Rc7Gz2BMIG7rj/wBxoRjaWGb
+dQyKsSiE1lLiH2BMnS+t/t0VvSUbtkF/+ndlgv5FNzA64WlQTLYK6kpy+kOZoHzBV3EGda0OYzCT
+6r+iTFi3NH9fjXnarU8vztcI6HnAQaD4+cmy+g1SFXUCcZ59h2sHDU1GcjAuvQBRFE8ctSyV2ec0
+sUZ5Ufgaftuh/FPUgvLzfmh9B1jzUGCsVkcecZ83XbVkhX3W6RNgAo5LCMabMdzNmZBeNErwT7HB
+Vt9PiJN4MgiHT1FFtRHHeI7KVJK0kYhTxEjyVrAMl/s0rYZ2zRwIX3+4q798Op7fJcVgXHwWQcNk
+23zaGspJmQm0upPbSHJ502G+uyPpJ93+9atgC/7pfkBDwbRHPwIoJZsaAAfr1fqhGxclUZsNEVLR
+qKUA7VpnsX3VWuZb2um226oTJ2L9rMm3Q7u+1ZHRXXerZN+226zBfrAq+VNiJedAaiVzxbphP7iu
+4ReMHqBfXADRBIXzUirpDHwNaX/ox8SOJvVWr8iBCUIUrGg2Zyft95FSaVgL6FY0BzMd5OWBpW1R
+N0pvVo+wJzElYGSjQqNnsQbmV6CGjCAEkR1/jjysZMRyJ54d5BvaqdSUF5PTScNGJNlCSH3LGXFj
+NwQrbOQpyx0fjXItyPZRSZ7RtZKvkkFSjKj09cX2CDzKs6/D2XLR2qUF8qFbJhl/tUJOSHtobZzH
+D2WZTxY4ZiAzHpuDcGfquIEf41YnAo3ElW7yTbT7yW61mZVPdS/Vyz7KUkFFrdHxsiUtB0AErfi3
+vDqv42orUZoVHiT9MNm3ei/ZPA677MiArTF+1fYw8Vy2LPYqnTwK9hSt+kSlEVm7hJ85clNsTBhj
+bB7uvoGV5MlZirgL0twhnTsZ51k9RkZFfEPbFovqCWsxrxq08o/JlJH9iua4I3RuiWxyBeeuZWqm
+HRbP0Binzp2EIw9URAel3ahilMVDyfbH2QPwVlMwz/DovUZP5fohMi25u+onyJlu2gn9zuxErgfI
+NyVnZy2DbO7J8LCN/RgWE7Xt3qznl2Ipu+KO0V+Pfmnb9n0tNLXatyGZWR4uUK0PcG8270an1QfE
+yPCZeXLh/bHtATUewcFOc0wkwnZc+Nk9IdQkro/UEQbCSjJ6I8nXwmpN4eL7T3pXTRV2U5lVYhOs
+lApjSDoQ7sHoSdHO6rpBLGKoyPDvM7SED1Ok6MVDOErFe1TWKaHhyOpRIw6tfm8m7UywTqgQ8tfD
+71AvCSIiyLrtF/smVKr4KUWc9iYXjSz2U1yzJTXLcdrJ2hJLV2NjsvmUiMh4Yr8yjG5LXNVzi6X3
+JkcG/G4mRlfsajJKT/U4micKdlHnJfYgCBFSBNkVSmseZNJ4pltUYTNTos3Cets7mSNvqdlUDQGP
+oT55WkVpYrcgGeeWsoMh3dAS34d5Ic9LUGD2VwOA7MY1BC+6Mzp4LTZOFbJ9XZWuFMh665Zzovej
+kEIKUpYHklt3aqMHddyOuzRl70AlXCF51qbqv9HZ4m27LoKFV8N1kL16msm1RjjqLN7QZRVFfF3t
+tyOf5lnLDZTsTTgvrWdkAzeQ0g68y0FaSFCfBdLTPS4Dejb6YFNWgIHsRHAxp3Hwk1lqp0OEb3Mm
+Ore0dlkB0B0Q42grZNgYTsguhpdCQ6qCCi9R7eqeUIjN9LVJZQhS/I9JrF3UR3jvqPdx+Lb3eB2i
+eyOawu8xPKQT+6CCQjWAv2XjaJ12b1XGU07K/GsmCzIwk9wk8tEy5sqPzsYMCrMKVuKzYcOqp+QK
+IHVq+RjRl3Eb/m7vaKHzj0ojGk+cLSDj6gZJUFTrZFfgESENDbtI3mG9JUN7tZH0Z0tJGxmcEjrE
+sNEmO9tO4rMFhdar9UA/CGOKlRTigmg57CrO2brCAwwbi3G2tBgwbt8g03fvbBKxvEjxlB201Qcj
+DUvybJ/NMdPZJzOM4xthqCc8cA0pG7+ZaXKie4UjFf4yWaTFOHXzWMkycM3VfwO8TXtW87c6jMYb
+tvHxmyXIWB5hG2x7BeuOs5p4ZkH1123O3p5SrqQHdTX8ZEMX4/05+4ASzEbP42oOclBXF666Wob6
+s3soC3vEv9pqKirnOKeCl0bzt7hoL82z9SgSpnKLdDt+7RwBTV9Lk3sMm1iV7KQnothe1OqpTtSI
+EPDV0tQxOVU0t6vTaf7N9XR2QNGTxQ1lrsYo8+yRojzF6CVUXRBBboms8OvYGdEhr/aqJUlwWpVn
+15WWaOVt9psXa7VlRWeHVk534AH3Kb6t/uzhkpzVz8Un1a9HR6vfaWDg95pW6xdncVxg5tkRppzd
+YTl2cWypq2msOvvHyrOXrFhtZdPZYdZLmM0ymgCGR5WXjq81cKuxkq3etOXsU9NWyxoH38gkpX1g
+UnMqwNVWR2pbwx9a3W5iicVHX8icHY3VDtfpco1xdTXJlWmSfu3l1NGC6OyiI7t3eDRtsnvc9Oyz
+k0yNCM4ijaNTeHbiOWdX3nx26JFW1XAwOjv3qnxKT/PZzzfLjoN+e3X5nXc6/z48fDo8aD9sAP8s
+bU6+9f/73z/VpTg88CN/HB7kL6iZTZmyD/Lm37TLf8iaAe4DRbCgSthnwTMb998PD5L6xWJLjbsA
+uTMoVIW96t8OD2ie4Z0bzooT5ivOv1SWoiP+83ZVdxSQMEibFQvqBPzbT6KqthaSQ9uYAk4eJ7h+
+dXK2F2qolV+rnbz7bS+YTYZ+XzhsZtxQrwGXGplVwY6YQ/O+0/RWcVMsc9Cu7EbKN1LWh9eWaRgY
+UqUxeg/BoORuEUal4uUYQ/UNYb3qh1Sa1OQTztAEJnLOlbxZM9qTYodm5A8lDRTayOiPt8myqiVG
+9q3fS3I8P3qlX+4EuaQJZupipgpjG/FNrcrwDiV77noX2fBS7fDIUWhQU7trdj3pFoSjqzbmqdmS
+XxUjTSxPqiv9qlA7hY0Mu+bMtWRDajFapvob/VjnvbOsmn6VXbFPXlrJuaN/1S13smMK9jh5pNq7
+fsHHDJkvKp+KpNRnl4B1Mz/Eg6ViniUS2wgKoIbzharmLI9RV2O1leNscWnSEAPUGbH5IS1j/DKY
+dhcGk2Kz7Rx74pc8JSuSzkf+IB5nu+7DQJNEw7JCh0r3YmRI95oVll+1uerz3WiYi44psKaN2o7q
+dNN1o1D8kmW9oMmT2qpHtzb7SDstvTVGcB2eLbVNTzVCsvADRxl7/Mox40cxDhDZWjulLxTqcZT6
+JeM054GPsZMu+GBcY9AaKHyNYfeeFyleVLyJGQwHYknv4kSXJa9XInaDwDZUxRWGRIpl0RjadWoS
+3+klNL0ZLmamkaI5NdE7GgNaYF2RzKGflAPePkQ04qnVmqG+NPF1xDviExux1SWdFJFclpTSzR3N
+uGFHRJlPa8y09wykJleClM7oChpn2m45YfWr0MOKdlGEM1HV6/xNhmnxPspENHnT2l5xBhJafWlt
+uqSSTf9FtFXee5JCW8Ygow/TTzoYcKHXxo1SteCZbWF+TGZe0vc/93iKtd3DfrMmRVhhP7k2gxqw
+yYTc0iAyz70iTPfZ2wLUjIBDsorp/rRPyHjoL5HbYykbvJvK/Yz8J9yEGZFd47kvhYcvv6RySreq
+ylT7uh2pXN6wubHUHeOA3pZ97nNZ555XrHKL3D5x6IUVMq45Vz73yOJzv6w6984KqujlCnTFBF6i
+e7gubSgzx7IwZpVIwjbGSTWrI67wOMlJ/lOHaTckc2kdbVJcKkPLDhwsFMbUQLHR6uMYYkOV0WYP
+raj9Zg5xd51oIusDqBjFqUJFQjGNlve1rnfTuIuSbsRulqhjtsPFC4lAEouZe3perxWKaCJ8fLGb
+atzkRajMblOWox8lcdduswmHK+qAKUbl1NnPI3FTft6O47MsMrEcYQ3Ig9cvIjtNQtGrXcNEYX0o
+jJp0ZUkmuylNaUDlhS4/rJzb3DOLahguRCSGwccYpX0zJQWxE6zoce9QfXXcpK20O07aYNkq8oO+
+zsQCZr7V59wSWRk5b+omoTe+RUTipaH2MB6myW5gajVO80hfcak8DtR9ukGdldNvawzyvEiFo/ls
+IGD4biNhQjTWRF3mxlOk6wSiteEjyqsBdGxjsc6lpE+0bi+stg8w7y7Achq0b6cM2UK2r4nerHaA
+bYyjbLXNQsjnGrhRmXb/IGVs4YO5y6KjTjSnEVSiLI56kudpUCLeuu/qhIOBoLAwbU2OnOSSGhQn
+5wGthkTxWeV0mC9PaT5oL7nIi9kPkzB/ixEmjAEiKwrooo7ny5i6rLbR20Z5rmgfUHdysvZB13uL
+qTvU6HxiFfO+m1aT+jznUXjRErd2J0dSepuusFPUbuAn2BYhY/BKqS8uAKbEvbeA15Jco7SmU0SE
+nOz1qdQftcGu66dEyuNjZY9R7KYyydLbVk/ZBQ1p4ryYKQ+EYHEEvld2nDAB9Fhrd11aNxb0jnG6
+NQYmjZcJYA5g0C2CzlVllm8ot4FMwYPcitseQsuWUIuR3nJpMjWQZdKSAMbZvFcW3kryJEYfRkdc
+fUWbp2dBonGG8VUjI8JgLW/h8yv65EjqWtjv1X7BJco77566gRME88JiW8xRHjlgWip3sh3mXy2T
+GElfDikjucoirGtZmQ5Sucx8kGUWMTS6AhqVMRTrCdyKoQe06CGfEAvaj6NSZMiwyhXNReagA+KC
+7v3XiKBZEeiK6A9D0VPpqOJ12QZ91ui4c2foLkRDT3aA2x//8LBwwnAHg+XDLcrKeGb8O/khHcP2
+hOMZVQMg+JTndBLOiBSmmaBZCjOlZzRqKbZK06boRfSW+jj0Bg5huFFGwqohafgwfwoB/2NiAsHt
+Mj6cnBJhUJsTKj/aAqQxUlaav0mIy57ht8L5SFN2/hAmSG/fqH1eEUIWj/GxjXokZw0F2keNmGNc
+9KbBnZrnGLuyaocNntqaVgATFziBaifYa63I0BS37kcrwzY9kshNV0ZR/CgsCNcW1Bo6z24Gwqjh
+mix3FWR6lXjJTrLdpZHqB26jCU6FsshjKonO9oXIEofUG9n80K0W36OFsAGVygtLf2P7hZ70bwLn
+usWikrd3RNSC029UjdZPtDij7FkzwYJ+1qvNBQGRKbGOqESiTe7gOfYSJ3TuFJyPEwmJBjZnsBCy
+7CGUXK6cWq86jthS88IzHLQR+g37lFTV2ATZsm6E+gjdsA8KL+EZDl/kcRl11hrKZnMfWOVgdLgg
+Bc+2OZ5mya2wmwJZqrKZpLYpl56rmeqXV60ALVdayrbxqzFqCwReNYmCDlxVxx+MIm19aJlZ5Bpt
+DQkpFXEPnsdc6zaZbKRfZScSmwjhEcD2qRHThvnSjgHvPG3c1BhYZIY6ITVSj0PlrQ2hLfGIzdCc
+6H2zSmOsrnuMY6lF3ImWIC/NjgBfo5fvWoWGm2eiQap9IjDgJKv5XPJxMnSmfd91FyBCqUQZRiTv
+JbvvToWCAMWf0la+iWIw7sAeILf4QmkyUs/0liWSYKjxVKNdkF2F5F77whS106GfrfJ6w/aM/ZSN
+XvXVWCw2pqsKQoUhZWJgjdVq6cATKcOJ3MFR8mr2tZFvhSTRUlLDxTs3Uk84sUxcJlkDyCjVcNId
+T1FHxLSws9XjAnGKcMBkqA1viZJmCmSzNK8o05SXoLdH4pWnOj3Qe121wQ7hnASFKvnLIrHYsrOa
+VwkTNgYKlTltp7pgRUL7Ecmvs2QphdfPIrqNBwIW0AmJ+qalQhUFmYQszIUSkRmepucLjNU5VTbw
+AqhWOYMdWRc2wo9LOc/zxGubSt0S2K4B4MqsFDiLalAg6yp7IfFaW4dLQv32TWNJ+VYQaaFvNUXu
+JdzZaxwlVZySYRIW2XtZpAZ4TUhIFlizvjl2CrulnVg4dLtiiI3vYchOFKd/WVsBaHDW8XiZBgR6
+da1vpx6sOzHGhoWWSmm7ZGWysDlOY1jkWdSAw5FMh1qqGEa0wvLEEhWrjf0xJF0vb0iTNQqvm1T5
+WUYf3HlVFtlQh+wufontLuo2BtvdfKNIYUFtMO9qdZsMTQRtIOnnjne80PewRNG+xm2ufEdlxB7f
+nEJdcJaQozBAkKanPrSkjsJpCBiKhuXQEDExOvUHsIJkhDNGmdbPhqYg6sbuaeBrddm/Whl6aL+X
+5Kz1KkMpXg2haZByIL7dI5iNFn7TaKGdlgXjL9YLjXfSU1w8KAw94ZEOkEcQf5ryQLsUJ3uaS/aV
+mY9sUFhEJkYCoEwmFzE4/FqWHLFVo84y3aqyqTOkINN4IiaNqZ3oFszczKGTNkbYl1u9VeUtW80u
+/U1R/++qwg9VBUeDw7v2hf55U/KmKt//93/K5NuPpYW//dzvxQXD+WLRpiJvSkWJxB8RhPxeXDDN
+L9QIqCv8IYfhS38UF6wvoNepq1I/AN5PNhZdy79VF7QvfG2tPCCMIWcPWc5//sdPncD2099/9EQi
+u/pUXkA6Q7HCJGYJLzbtwc/4TrsboDRoJHBRTvuw67Tam0nd78dEozXvDH390sFyO0aZc6FD6QiK
+AUqiAacV7b2jPJdN3T3LbY/hpW1BCi96DMyvjI3D0sya8JZBmze1tHfyqdgWZp8d4cVx6HckTm0j
+ISw7x0xYFftR0x4Sla0/nTbnG88T7EHkqT23SVpvrAi0dSKaeWsLK3xK+SREaEayscYTdw81skEq
+DUbJQivLynGYSvtFmA3ZYqk17zQtt7eUC0sojzoJnES7jF/DpmzJr4nG9IWa+riR2Aw/JqY6kthq
+syPhs2vanUCfMXuE/hKNGyoO4n/FuupLw/AXx85ea8iRgJXk8Ulr7PEKKhzrGzAgNOkclHV/Xg5E
+FqKJiLPoRknTPdpW3TM6u3htCg4Puxxc4Cvn4KIP0CRYT4PaNyOJCS0CdGKIhwj53thzVWJjjVbt
+nDDc0i7WjFc56aL3xYzMK6fhGBFMDjuooI/a9rHvi+q5lKj/5KlZbJSJJxkpTWilC5BNCSvJqZFt
+quR4WDwpJ3yqSu2MiF86GYDlxNGshnATq1S+XHZQ8feMns17i/LmgUezjCQa+A0VhNRLRZhe83hE
+12JJ7a4wE8svKnpPXWzGh8xqru26vCXD+zBRaNdIcRZJ3m7LUna2kK10Vx/tJmhQ7jwisD5I1oQ0
+loeLg0fBKzl/elFZmZ7Rc1nryUBtM5YnI+OL0qh5Qzrgt7EyQEGMLrdBlb0R+iOwE0+R2m/2WF+o
+S3EI21Y5aY3yJigQbXM9vZl46mxBqCnbcVrCYG7BMNa4RAJKseAOTSvnF1iZX64kxMEY2acVSAm3
+Vf5/1J3JcttYloZfxdF7OICLedEV0SQBTqJmWZI3CMpSYp5nvE1Fr+sp8sXqI5VyWU7bkZlyVFdz
+k2mRBC8u7nTO+Qdib5g5vrJEJhi9jmCoQmJx1nTiBEsBpBoAxgkR3dkOFF2crEZATy/1XSYVaMiE
+tn1LZ8R3sbDTCwSapHVAVdZJ1A6hV8wmSbbUHTF8qEUWI6DDODbAUeBO7n0Az5FHyF9xbFdzMzuP
+tM5bF74/3Ii0NJc6JYVTP0nsD0BXMvDHft2dGnkoNiAfpQ9TNjanthKRXInGj0baoPViQ/lx/LZW
+72Cy6S7WCOIMbRtvhxBYUCJzY9Vrm9rtveZ1TpeFi6BRkAk5WBJQHjXMC2Rkx22RVR5nqRQR8awb
+zoQmFXciK69HQ4jzxoJ+UszTSKul62qIslFz5caPtl1kqfPn2jcpTwQjR0XdhMON1Hi3UlzX9/lQ
+Wo6s4ypc+0G0pXiLBbGBSrkfevgQkzpzYWQdZuThc3llLeugJvmFGb3lAN5Fms47mgm3MClkDhdu
+jMzcRV0eDIyRirrTRj7Yi/xQN7db+yQusEpnwSjU+9iKs0XNWcI5ZttqaA5u31jJ0q/UZCn7FXwk
+qmwzP1b6J3QJ+fDBtjmPI3nVk4NBmezwZYJEGEWkIag6AkEvTiMMFTZmH2KknA4JKvrAVL0TwjQJ
+YzMptrJZnxBugEKWfgGFGLphZNY3SEI1qwaERi3Ix4xlvZrszNsMkdrdMEylCzk121Vc9yn5kMje
+ki0l89b35ZmZiU6e23j1IVxVNTiVTwl8gMiSTlovJuo2EHS9qsgruyUCv+ASx7g8mbogXEawzVad
+WZvOUOrNQg87il4QW87MSHuIgPHN48afltYUpI9S0Ogfk1BDvrL2IYpQ+yvAEZpFvajDoj/DLpNU
+YlYa8wyyEGf4op729QB3gtLyKgzG6FzpFNOV4Pu4cp5ki74ck8s4TS3yg3iFP/d93hz+pvOQIgpK
++uGOCqcAMHJLmTNax1IX1y5HXv/RqjQwDr6us2SKaRSJ4yUHekINgujUFxpyVyhrWh7F6DJYx1PP
+NeskyBagRHnIbWo5uRaA9kZsbrjWyAlR70anjNB98M7QQBdUCXuG0CRNq7qqMVruR+0GlMbBdT3D
+HdscNO0GZcFiM5AWWWVdgs91oBcIb3FFVU/LDe7pwWWfjIiOTQVkH9NEx0uuRjgCWt95Z4gYYZhd
+94wmvyyDWxTeqrteTtt0+TwjYpxGAXiMwPZjlVuSpyxbqGoor+TIK+a+2XL7z03kKFI4HDGquzjH
+rDuiLvjoI22GuBU5McevKA3LCUAG0C8H3Hmdy9pNC8C/WKRha+3zqM02dYDmmBwyUxn4AuGwHpKO
+6h5nQl/Uw0Nfmioqm3ayjAVK58AQxuACnyLawjJ1baEoOPe9sPOWsWoXgLED/ph0XC9G5Z1K5fFb
+csl7eemVIZM+Kvl/s5O2eIRzn5Skr2Oj4RsFSExuV8FboMnmPJvsKkvDfG60uXzfIZe37AskThcC
+zwEnaFDBc0SHjq8LXDGb92WqAgKRSZzNuoyCq1shcLyApdoXqxp40DYV5DznWqsCaQA9uzSz/ECG
+yQuTTTnsXaSwrHMjUBRlFqSB5AzVUAY4prbZVu1txCVViDu7woPLp4cN0BSiCaAiklevCsTmlZkJ
+KnaeTrH8cSJa2YxolzqkAtuNPKmDg914hyQoytYXuUZohIiondzpxYSUNipPOVk4Oe/vDFwiPpgB
+kXQ1hpJMlreXynUymea6UqXwrI3k3HCKUm3ua2IYjSC4GTYQpidzLvdRtqKOYLaXdk+ld5n2Eogr
+0pgLn48tlIYEHhw11X4y4aw9QMiwN63Igzk5zfsBd87zsOtwpa899KcTHs1tOXUEeVFkXvaBkKP5
+NAXBEvc8f+0x6zhShbK6bVLF2hVpZEJ1jISiO5baejPTsrw1kWohISJnRSctzFFUykohrbNGUw85
+pEpfpm2bfOhGW5kLPWh3Sl1YGz/wvSUAtqJZaEWL1mOeSPUCBkLuEJmB20hafUU0NtwoYLwfpsiv
+ZYZuZW8sM6To0cSt3c3gDQbCJZ1db5S+Ql3WS4YrrxXFh05u2YYzMXCIhX0yj3yWn4Vo02BeVJgv
+ijGTNm1dwVoiWeyfTvrEqW/Spg3AKeucMTfuxgEbeyUHAg+0IzVhvGLhhMZ0LedwbkL5Qwv+GcJ1
+2/abjJKH5qAH7l1oEKLXftf5ywhjIZI3aYJ+oDba5aOhDcXO7NAQNlu1qNkzlGinZOilcyhLOenK
+GidnJx9V6YZ/+p9sK1HvCGOreqGSb3y0DKwrydvo1i2wMOOa4WnsSjMnlwVRbFlQLkQmMio3vayM
+Vy1ijQdFyg699T4obj3wvB8kMGePh+jCIjeuGjCcEoWtJCdfgDunFzwgA0j4SiGo1BZalRTXhQow
+Y0NpStrheY1Ef6jU9YM3ZPHJmCgm/DWJp9bW+UOn8iQnMDO7ZADP5Zb+VKoPneZJm4bVbK5OlVhD
+7DbdaTBsF6HdfEcu13wyjzqkwOpnNiYLmynrO6LpFgq3Jlv2padr+qoefHyaqVWwZmrRRtUszpiW
+zH6Q9iKaiQIp5lnfm/I5nMCULCtsavTnye5qvZGcmoCHhcGX1TA80RN/33GtEwaXsbJjryEib+wl
+2oYg9abYyE9IajRzn62enJHqL3sUXec4O4Vb9JuquS4j1utxGoDuaPXbWpGQpFSa/kIRAtq33Fvr
+tLzVI7u9o+sr9tA82aWGSZZ58iWck0ExOa2VmJuwyZQVKbAHIaX+RdGQehyULl0DI0GVE3nCix7X
+rXIGYrpZsIkVJ15ALgX1194JYHrh85TVrp56w9WEOKoTJ96whWWQ3tTYki2UUm4ve9iilGtYrzkS
+kwnNbW/akLGVL7zG6k4ooY4IqPsP/QFHCJ/VAnTqcVroJjU5DQOt4oQrQPd5HpXPmLARNFLlywtO
+0gNQQ4KIRoweO5SAGxz30iqZpMyR5WhYlaKvz/Q+BHhjZtNjWVVipdh+v9FBabmW0UqckGxpF4Iq
++eUQ2AUkxoecCVL0t1j5IExp1GujgJ2dipIbKNTR3wP2ojsH1qzKk+0z3bMUdeaBolqjh9ttZUT2
+VywIjUp9vFW33WSHxVIYLNXb3NYQVK/NBPygIIPf9VlaLJtaCh4gX4ZbTURJSxABzoyEUc+WLulm
+uKCy0z1NzRSc6ZiSZPPYi+LjSNSGDWuJuiLxrl3aSLx+hN4OUNRUC3uh4GRwLVkyxMQK53ZU4FOL
+9FZjW+u41WB0Z0mmf6gbU3uqCqjsaxjk7bIQau4M8DY3iAXkaBFGnTa4FVYQ4wwDB/mptQOU1lmd
+xxxPJyGpM7O0ho/kVuN9bvYdi1xKB1UoHxxMdaXuSsnzYdeVuthMYS7ddDlJgZa62aVGoYNjYQog
+ZhEPkXfaNV55igiB7wiKd0s5LrvACYVXJw4wOBVR794bPo5B19/7SCdfkYGPcEqUvStboXKKu7qn
+fghAlcGVG2R9MVZJB0TVtilY+8jju6ldtieSCC0HTxqlmqsJLZgZXaie10nbWBwmx/yjF+tIN1JZ
+8Mli+NEFWvfQRyPFatGZxnHupLcm67obPe+jeqDGJ7FcL4RiFmcILmJqVSZXyPgq2ywAkhTaPYU/
+3WqpD6qloAiOArxHsYHquT344Oz0przuB3gvYRV0SHOSn3SDFoFIyvjeuKoSGeBVTLL0DHHW4SKS
+IMrNpHjwr/LAi6+9sekeB9blFCmDIUI5drT9kM1DUnNWiDi7YyGhIRO7CWUYMB9u7uuJBdAzTzuC
+0Xh4gGKTrCKzJXkwTLa8NqZkw2wtAkeyc1R9EUAeqkXZFvIjh+xqpZVF6Rac4ImcdAEztPaH5sKv
+PawLesUTHygQBbuuMyWcW4dgo9iFvApxbZBbnRJRUgzZknSuhvh5rWy0WEzFjHlVnQ+KLpZF1fjn
+By5gCKE/05iBevsQJkJfc+RWBfQksFkLyerLU83MB9dQw+qhlRr/ZIo86ynIgxgF87HWz0w5Ye/s
+qlA5JeqqhsXQWd0Ee9kIkYKI0Dedo4QQbodetZfwuDEtHYKFoXu4vo2FvaUIIShkoEl96Vdy2biF
+hjTArCJwSaOod+Igly5zjbqgDLsYC4Y43JJUGmd9qi6a1L9m/bpoJOQNJAPx8ZCEhBFL6mKMEJcR
+oeE/pnVyM4pxESixvJOzplzECF/sWq1S7/vQE8s00WK3Re91FpT6ZV8Ha6koHRtcyaZjRbfZeCQR
+XEzy6KbStMiq8FM/KDs/D86Im6mCxp5jIj+SVvHaCylze4Z2G+TlcpKptQDZPiSoXaSw7wvP3FZF
+SamFGQt5JrLmWTCOO1ED3ys0EhN4jMwSg6KGiKdlrOMkGGFeNy0qIB4VQqfuQaDgVG/y0bEzW1sn
+WhPeQk8qPyqFEG5vNfWuRpiGso0P3tlTK201SUbkzw2lk3+x8Vo9ZdSySmmAxrvAn24EteVNK2UN
+xnWB2V5UapddWVRZnDKTgdlNCFfn2nQ9dcrWTGuKX1lHGKbIsjMlvYZZmXc3QTmCfyANoA1aE7jL
+FAkXzY14N9QT59bMpESegiav0B5eBKopiOqBDzfyAPaWM8wm7HBBsoFfNMugAm0s5Ur7SP42P1VR
+ElgOQV8tsYq13Bjc+JxwUN0iij/uCtWvT4EfdNQxrc68qjqj3caBOXHSHMxPZhJ0bl0KZT5w5pwb
+KGZvqMglS1jHoWtrk/EgKa0P9DpPAM4InfqcHG2qAItdCVs5zr+xcatqgXDGrpvWSRYYrjYKGFAp
+9hkXtR4pp1ohtY6C96OT9ra1GkejuZG8QXVbHFQ+pUPa7NJytM8g88VA1mNKnUR3T/Kggtqo477e
+JZDenUbrow22PfpJr0TUGyDnDcskwD9GVhAhQZSWcHkcK0SswQM4UdBoiyqS43sKUImLX6N/nkmD
+tSMkSRwl9CEN5L33aVAb6ZyUp+rkvbAvIuQuzmMSt67BKXWVeJKBHAzi7DOjiTdeqN3nmQKzS2rB
+YA198BT5UL8BgY2XIM0YSEkhkV8NO3VfWvTcoBbeOu9DqP2DXF2h6CDB7YtpUN5UFPnHYmcVlM4D
+RLcXLevZiRRI/QDbph0XUIe0hefB18plGzUXIRXM/akXAJO1cUIEKJryBQXeYh5lBSLiQZApJOjG
+yaX+Fp+YcemzoCjdQ+sJJM+nsHAoak8PEWXWdQRyaWcbnbxC00baooUTOMLIZIeCWL8dJ79fk2au
+0X7h9Jqq2rRqAKV8RMg5ZxmrssvpkHRui3FwSjmqrm3QEm5u+UtC9Ggb9CjPkKXCOibxW8YuzBXO
+n53iTFJLj2D3YjYIT2OQt4HmSHIxyxvXrwbzZqwmOM9w3dws0fyTIT1419pBjNsPO+FapHjpzBpf
+9W+HMbKuDEnqAIu1Ye7mYIbP/CIITyOkffsZYF+xxgIpr/4fI1V/K4QdgKRO1mCic9E+VePlU90m
+zefSyuHdc+hYzTWky7/yoZcazbcv9Fsp6nosEOfdP4JKXIR1w1LffFltOrDgqOa8qlEdG3Vs8Y+u
+kexpc/vIxSXFPij0GpqsaPLxBSc5yTMgXs/va+p7MHqI+1oIuR1ez2jbL3rpe/3w41t87tAff+bV
+LXzK26w5PAg/zLNX3fAH++CrC3zZB2CAj69DcezLm9fV9+gU8DoqFPPf55/699/8d8eAwJD6a2L+
+nx4DQn2v43+IkbZ1vFv56zFgvMd/jgoh5Y/jC7Qzo+4/qRsOFda3TgVVfi8j5keXfjUKoIMqYMZ5
+87l7/gNHAQfXt96+MN/DikRnDzm+59frbtCs9zpwdiFj/Xt8/V+tBN+fDHB5n4fmc0H88+L6ZxZE
+Id7jfs5EUMS3u0F9jzM6PPLnleFPLYh/YMZ83mLmYHcfj5tL+ARi7/d70Pc+8LKm/v7939bT9eN/
+/5f6L0bz8XOHreb5p5+O+9nh33971dHH6f7Fmy/T/8uv/3Z/v//lb7bp5Y+r8KnaV5+C8Xi342+t
+fFam/59P1dOXiz0CIi///Obu+Hkz/OFFk72f7+uXCx36gwCCkfOv2/vdtvvHLpzupzz76sraQRH6
+rVee7YPXUBMAJcy/t17WfXqk75N33zpeoNrFmvLWX4CM+Os/qrDJ313tiepeLvjc54hyvvzhrz/N
+ZR7++vfXDxNZIXaDtzZ9t6/2WfDr/75qNACan9Ho3Z4eofQBJubdI33TJi/tPfQMa6wNzeftN/D5
+R14u9nx1tBBe/vDX+/18X71WZRC6clRl+LyA/LVJxHX3v/7j4RWwSujiZ8zPH/tcvLHdlyGP8und
+Zp89hdXrMfO8L731cR5+YMmQ5EcYMqd51bxaGgVnIEBkP/dXvh6Yz+est/7GYSnYv5sTRFVh9vpB
+o+PxE9aEK2btu/M9OPOXDjkO/OfD8ptb/32tqzcOoev8Ez0TZq9WM1XV1Z+wmn1fReWNjd7xCOt3
+S/aR8HW7n8PTt/b2+XcJnG9s92VOi9NXo+8QUf+MKfRjbOgb231YH7PXK6+tajLS4C9j/a+v6fOn
+rxd1ZNHUo4D6j5/jt05+nyPE358HX6L/b33t9Vn38IlPCc362z8BAAD//w==</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -12250,7 +12225,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9652000" cy="6016625"/>
+    <xdr:ext cx="9645063" cy="6011155"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
         <xdr:graphicFrame macro="">
@@ -12316,7 +12291,7 @@
         <cdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E2A385-3CFE-1B4B-D045-ACA0A2EDD4FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCBCAEE-3BC0-9D15-46CB-282E2B6A72F7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -12327,7 +12302,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="9652000" cy="6016625"/>
+          <a:ext cx="9645063" cy="6011155"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -12954,8 +12929,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12971,7 +12946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6792686" y="314325"/>
-          <a:ext cx="3902529" cy="3419475"/>
+          <a:ext cx="3902529" cy="4271282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13108,8 +13083,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13125,7 +13100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10888436" y="314325"/>
-          <a:ext cx="3902529" cy="3419475"/>
+          <a:ext cx="3902529" cy="4325711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13268,8 +13243,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13285,7 +13260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14970579" y="314325"/>
-          <a:ext cx="3902529" cy="3419475"/>
+          <a:ext cx="3902529" cy="4284889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13408,10 +13383,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13427,7 +13402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19066329" y="314325"/>
-          <a:ext cx="3902529" cy="3419475"/>
+          <a:ext cx="4555671" cy="4298496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13471,7 +13446,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-- (Query 5) Dias da semana com maior número de visitas ao site</a:t>
+            <a:t>select </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13485,7 +13460,133 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-- Colunas: dia_semana, dia da semana, visitas (#)</a:t>
+            <a:t>    EXTRACT('dow' FROM visit_page_date) AS dia_semana,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	CASE WHEN EXTRACT('dow' FROM visit_page_date) = 0 THEN 'domingo'   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 1 THEN 'segunda' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 2 THEN 'terça' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 3 THEN 'quarta' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 4 THEN 'quinta' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 5 THEN 'sexta' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	 WHEN EXTRACT('dow' FROM visit_page_date) = 6 THEN 'sábado' 		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	ELSE NULL END AS "dia da semana ",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	COUNT(*) "visitas (#)"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13498,6 +13599,62 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM sales.funnel </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE visit_page_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUP BY dia_semana </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY dia_semana</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
@@ -13853,7 +14010,7 @@
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13889,7 +14046,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13913,19 +14070,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -13936,25 +14093,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="1" t="s">
@@ -13967,16 +14124,16 @@
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="U3" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -13999,10 +14156,10 @@
         <v>51.857999999999997</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4" s="16">
         <v>734</v>
@@ -14012,17 +14169,23 @@
         <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1">
         <v>18</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1301</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -14044,30 +14207,36 @@
         <v>47.898767142857103</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="16">
         <v>142</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1">
         <v>248</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1">
         <v>15</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1238</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
@@ -14089,30 +14258,36 @@
         <v>51.784261363636297</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="16">
         <v>110</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1">
         <v>237</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1038</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
@@ -14134,30 +14309,36 @@
         <v>78.871778484848406</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7" s="16">
         <v>98</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1">
         <v>193</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="1">
         <v>10</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1076</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
@@ -14179,30 +14360,36 @@
         <v>71.788251562499994</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8" s="17">
         <v>66</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N8" s="1">
         <v>136</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1">
         <v>10</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="S8" s="1">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="1">
+        <v>956</v>
+      </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
@@ -14228,14 +14415,20 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>108</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="S9" s="1">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="1">
+        <v>677</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
@@ -14530,7 +14723,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+      <selection activeCell="AV25" sqref="AV25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
+++ b/DashBoard/Projeto+1+-+Dashboard+de+vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HD\ESTUDOS EM GERAL GRADE 1 SEMENTRES 2025\SQL PARA ANALISTA DE DADOS\Projeto DashBoard de acompanhamento de vendas\Project\DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB4431-B557-479C-9E93-703864B2E4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F6358D-C5CA-472F-AEB5-42D19B48C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3639,2060 +3639,2052 @@
             <cx:regionLabelLayout val="none"/>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>7Hvbctw4tuWvOPw8VAEESAAdXf0AMlN3WZLvfmHIsgySIAGSIAmAf3NiPuX82OyUy9W2yu3qmph5
-mI5RhMNWMkFc9m3tteC/34e/3XcPd9Oz0HfG/e0+/Pq8nufhb7/84u7rh/7OHfXN/WSd/Twf3dv+
-F/v5c3P/8Mun6c43Rv2SIkx/ua/vpvkhPP/H3+Ft6sFe2Pu7ubHmZnmY4u2DW7rZ/eTZDx89u7eL
-mQ/DFbzp1+dyuttOL54/u/vUN6Zs3Dw19zP+9fnl8fNnD2Zu5vgqDg+/Pv/u+fNnvzx9+R8W8qyD
-tc7LJxibYHEkMM8pbAo9/uDnzzpr1NfnlBwJkuXwHfLlOfk6+dVdDy+4bMyde3b8MN017uuTHy3r
-cVF3nz5ND87Bjh7/fjr6u4182ecPjqTpnj9rnC2+HFZhD9uQt4/7/uV7Y/zj708+gJN48sk39np6
-bH/26N8118vrn53LXzRXSo4yQkQuOP+xufKjPOU850h8+eFfJ/9irpf//T/ts+u7pbNfP//3jfXt
-2CemOuzxP8FUxc9O5a+aih1lQnCILPjr8edJZPGjjGKeouzHkfXyzsx3z4q7+W6CGPvZwn4cW0/H
-PzUZ7PU/wGS3Zz87mb9qsvRIoENk4fTHJiNHWOSMiPRL8KEnyfC2sc8+PTw7uzMPzfS/EWFPxz8x
-2WGv/wkme/l/0GQEHSEislRAovu2bmX4KMW5IPDwi63Sr5N+SYSHoz6e7gyY65N99nKBovKva+qP
-A+wHr3hqMNjp/2MGO1TXbw/iu+X/ZXCBjsjjD4LT/8465OhLCLH8h9Y5QJ+fr+THJvk67rtVf0FS
-//dgw7+GFL8jrxKy+O4Rsn2DKn7+9CsceTL0O+N8525f7Xb66dfnKeMYAuJ3KHh4yW8j/+n+f8xU
-3wx9uHMzwEOKjkSO0pSJPCeIZ4I+f+YfvjyiR5wLkiLCSEYynOXPnxk7zTUMS9ERyyEsAabQnJIs
-y54/c3b58owckTzLCWckFRiqY/47ir62XVTW/H4wv/3+zCz9tW3M7H59DvMPX751WGyeIcEY4YBP
-GUIkZRnseri/uwWgDl/G/yMuw9qyMRsLoV22G+t1K3mVbwChfz+cH8wCy/1uloylOcMoxYTg9FC1
-v58ln5u0qju6FQmZyR5TXMseT01Zq7iVP5/q6YZgKpYCJBAMM85oyr6fquNpHtJVbUW1jPW5Fcbs
-O0s6+fNZDm/59tgOs9AUU7AQFDT4+X4WiqPumcOxmFUdX0whZWfT2rkCxbR/0Q59/5qnKQbU9xdP
-UbCcMkEB81Bwge8ntXEikxtoKGwyD7sVT5Nc6dzf4DnpTn8+VQpty9MNAvjCaY5gshQ/9Ythy6dN
-sCQWzKxGFI3u3Oss23Qvs7hwflGxlX3GenDvDO9JLXnm/GXs2eAla7RLpNra/rprY/Umm81spRWa
-ablN3Lpy7PP0Jroam93i2JBJMjUDlwPi4Uuj8qVP+YHjYQiiJ/sg0JrlmDNMBYE/358ZtUlrZsZC
-4T1aKrniLebvamLJ/HpSWt1ivjola5eNt1p7Sy9wT9rmOM/W0O5pm693kx62e+WE4uUYTXe5zVVo
-ynYg+fQnTnWIgu+dCsot+BQVPAffzZ7YN1l03yA8hKJVmz7LNUll4k3/3pEmS6UfVn4Wh7SSplnD
-7uf2/mOAEjA0olQcYpQTqDffpoFkHBMfsQ/FNPMP47b2r2e8oBfaLkvxl2dKUZrlOeWEo5w/2aRy
-WT83It0KE9pcyxqRqrSxnQe50fjw87n+mAsIZSlkuDylLMcIfb8rxVDo7bCBE4fY7eYpfEJ4VIAS
-fxaV+PCWJ2YTkKRTzPkB2eaHVXyTQpWOI2m3ZS2qpK5kWPks214R2anYnzXLZnesq7pdilp6KQjv
-HrI+4j/JeviPCQm6WuAZcsh+UDcOcO7bRcRt9cqO81rMfEi87DdUnWfJuOy3jel9X+Vt2Vcq3y3Y
-E9mkiTmjGtW99DSQD6TmeYEmZ09Gbvrz2qpklHM1ZRczNnz4Ezf/gVUOOTNjPOMQm/yQer45rz6r
-e2K7aimAQlpkiBTW1zNy8nOz/GgWhjBUXcIFzdnB47+ZRfk1NXVs1yLU7SwH2+IisxH9ybn/Mb1Q
-qN88wywlGSX4yV50JJrNgvii8YO57KjDZZNMo/SuG8t+CdX+57sij5H4vbdRCkmZ5RnGB2TxJH5Q
-EEzTMKFCj4PqCyK0HiXNR/eGRGObXYtdmsvUdhMrSJjHV/XSjaukGYH0pxfB35K6DsuuXfL6Y+7a
-WpR+GdH7LTGoknELwRcat8sbyATJ7RzE9DZdhhYGjG450WKhD3FZu1z22oh+X/Vb56SIWEwFo/nk
-JRQwZ8tKoO5aL6HJ5Gjc8D6xkddFXFf3CspjqAs0WPR2XDuvZcfX5mWCOn5rbM7HgtXzctpXntZy
-sVW8ZZ3gQzmNS/4qODTORdPVcZF11yap7JeZHvebokS6dZ2H47X3XheIV2KRDpv1fWqQ6GUbO3OO
-2gGqTaNZFstxTMG16wC9UUEyPrybZufemKZ3TUHbxcTS5TNtj7032yWJ3mk5EPja6FkfJU96T2Va
-BXW+ZG2XyLbe3PJWxIjGXc6S9n1u7IqLYczCG9GpLC1Nw+ltFxn+TAdSqVL0C3LlNIvtjeom3xfr
-1mWqjLmJ05kyFL3ESYOH3ZbUY1UMgCdSmS5+xdL4cVUSNT2/0atfNzhBtXyaNNlWGUSPWblsK74y
-dTspKephfj+yYZil5skynU/5mrj9RJbaXigVJwqpeEbtqcVDbpeC0r5rXttqRImsc0LaYpnNOMJg
-Io6TTUUkDcm2VrYVJrZAxOCz2Wxok3Fg4XQ2nc8lwlO8FNQjuq9mVqmiGbOIdllrEd2tE4n3NWMR
-FUk3RF+0/arb0mkfrVxDjXHhbW1uILzZdIWjWNpeEp0EUq55jPMd1To3121nOY2yocuUFVlHR38q
-zBjycz2PVXqRT2O4qJY18cXgoaLKfN22UVZ9rbpdkyVuLWPDuChYbnhbVFtjpsJtVfs6Q5ur5dZY
-Jspmma2DsGi7Voo2qz9C+cKkDGilKThcZYZ95cSw7Hy15G91lUOsreMw3U1rNX2cdeajnMYaQtLX
-nr1ZnNjwxTLF+qML2VCuru1e5sjgl3YbBwDEiNNPgJRtI6tptmiX4ppfcb8JONNu3SykM7VNUmEe
-mCTbgi6wECl8LBS6QvNgBsmcQnyfIDPAv6sJfBOHLRelohAYUoux26SJmbgeTEvm3bbVJD+GfoDv
-tnkC3Mx5c+Voa9/xbYif0r7twXOmGO/6kbZYcq2TpFjNJDq5cW7fdF2D347pqFVJctb0u7XJulCo
-tO/bMoRsOgvIN+jKREfO7IrWeEj6o5F11GNbLqrWN7QVUe8BlrU3zqZjZoo6jOPFwWJ2HxuFkquY
-dbo548z3TZEIMpud8jECHiV6zsAZRf9isPnGC8h0g5LGIAYO3KGgZJuh6i6JhLzuEakXOTCez0U6
-4hoBcJ2pKEBBsC8CxMQqARouOztYOAUFeK8rRMMGXdicJpl026iPKagX96GtRy9FoHqTC4T+9WR6
-byUTFXsx6rTZCtWxHp1wQ5kvFlWJcD02U/Mmb3k97wPLtvqsX9VwAt0bn2QfPF7Ktp7Ci5ZwSG/5
-PJNtH6DhC0UXAnvJp7Ydz2c16VzOKV2IbKd0rEqwEnU7sS35OR0XaA+wQeurfmEuFp57gLesH+tu
-TzvmdnHUJi99MvXXzisFTt0P7bTrG1+9gRTtQuHC0F0usxvuUjKDjsBturyMNA5IDjR2b/Aywikt
-Yu6VpDjrP9aw73u0TLY6JrWz9yNH2VgO0IPt2zpmlUQ87z7QGPphV9faz0Wn16mW0WgonGIhW3cp
-pi1TEoNmM+2dMxWTLfPqamGLWXZ4aNltQlp83+ClGvZ5XfVCxmlKBlgHYrUcR2yVVDrh1yq1CT/2
-ohevxnUSfYG2NWtLCsCTy4xmcytzoC8fkp5MnYTX51eWYfw+VsFDIeOzFn+CeP+IRHgKKEFgkkI5
-x/Tw/Bskkkbkui2dXZFvjTprbbKdVmEOfzLLH5sHnmYpPQARzDLo5b+fxUKSrFMwYMESUMMQcuK0
-S9P2BEiJZMf7zCs5BLeeVonbvkz9Gy/zW5f1hVS4t0OcGlX/ps79/us/Lr9Kfo8K0T8/P+h7//zt
-xfowzcv08OzybnDP9ov59Kj6PR1zmPn3QTDxbys5sDDf/fIHSuhfkD5fBMV/8fDfY4QEyYEeAbD1
-e2vwB06oAE30v//rWxrp90G/sUGEHQE1AfpSmgtEU5Ch/skG4SPgE4DNI2BCkUP39w0bdAQIM2fQ
-jjNI5gwB9v9KBrEjfuBWgBYgAHJB2kr/ChkErBN4yTfokgoseJZBFyM4UIskf9Ix0bCsIKO2FrIP
-FM6SLV0/Qnob3ae42qyRLerrY47V3BSqScNHG0P4SNNc361s0pOcsG9XmVmTvSNLs9zFdnGQoawb
-t4KvLH5SaF18SUO+duXYxPymTbYIoYtZpWUuLP08A9C5ibXQ3XmoqhZJ66NKSz3y6nVF7Oal1cnq
-JGC26VrzfAAkuKUkBZiyYls00SMr68amV7hquvdVk15Oec71CaJLpeTiD0jO56bictri+noFtJbt
-MI36emv9Gkq0VuRsay21Zdt0hsIrCWGlaY09m7DrYmEH33wIvu1HqHh9d5mg3A27tNsAEzSimsZi
-WdF8Pi+hI3LLZtUASkkXI/Pg0rWYQjXfopold+k4IgWkROunEo5uuFucc9dDGJZEsjUbu+PQbkqX
-flLqkmycRDk4MQsJMGM5x6Tqsj3S/fzKKz7Xx77yGsveGHq6Nk1cdg6jdpOO6SE/6/OIBtngpv28
-cYwBFWUZ4M9cb+hs6zQXx8pV7asZ8NpVvSZxlEPD+7u+Cp0pIjTOY1mxyr/3qgGUD71dpU+avG/f
-pdF3XJKZjdVeZZRVRY2r+n5cB70UOKm1uTEM2XnckYXV6zF1dMz3wBfV5K7thu7dUqXQPWAaOlXi
-ZlSdbAXpOiWhABFS5Azp98uypVdeZQw4r5Q2poAFJfZOM+hvz4GLqbKLKvNLvgKc832Agr5N+mR0
-uPKjRDa6074RySYRtdoVhvqh3fMcz26PB2ztsU0WlB1z1ri3es4ruwMWE+3y0CxqR/HAaNlhASQF
-MT2gzZT3gNBUGFZdkjE3Q9GNbRevWz4wL2mDIb2P1MxcAg2Yvid6iKZUWAxROm8ScrXydfJFYlTL
-pdMJJGc1jIOWq+iNKjirVr9zaZ2eDLMP9Ay33dxd51Xf+VcQXPZNtmIEvgBNk71a1dyRYgPIUrCl
-XoqReXSTuCSvSpFW+LiqqtjJes2WeIyBNcTQ5LCt2w+1jjWQbmumAUks/mZMKfnQsxU1pRhVKwpd
-8dC9AyKQ62PN1yXKKCbhZNaiRO9YuvEPE21HAFutGtpji5SqZZ109SWzqxneVS1eLpXqUlR0tI83
-EXECmEwksMo+WfrzOXSLA2ouxQDwjavhMJLYvtTMTq/GPBXnjQ3pe5USNsgKekdUEAo+dIKBrX6j
-eotHSdyI3+PGJuneiDFeQOKqR4ACEE470VTdPfhfF8umW8mHNiHx3ZTCfLuwMvM6sVm9ySzx7Wky
-sxiO3dBsrujN1r+2qdbtzq6iuyS2ybNdg/LkYoq+cjtF1uXN2ifGSR3GYdsB6Mig+8e5PWm5z/Xp
-DLwWuhE+3TCkz2xadslUQyOhRzY1knKwhoQ+uXqrgqJ0Z0c1a4lyaHolRX783AzDRCDKswNvE6sO
-g7/rpd3jBEMP0CTr+NYHPgoJTNB6yCsNufB2irzcsAfWFti8zMkQsNYlTdLkBVBxNi8AnpFX3OSJ
-kCDi+tPYdLSFGQdyN6ppXcust+t63mdOdYXuKXrj2nYaijxVCJW9X4YXQz9QoI0mTO1JZZS+OUgL
-awHRNm2X2nn/fo2al6rK3k+YKFy0oe+1TGrAFMeDMb7UfYXBk/ho/V5PiTKSdENjoOHZ8q5YiE8D
-JN7U65Oknn0jCZ2DP0kYIi/oQm0rAwTCTaNGICVGmroX/RSnu9rqEKAoWOWKbeXJy8AseJWB9uCM
-IXHREsC/lzpdw0ms5zY5ZzH1tphiWF5WAgrfhbVOfDadhjxNSNO8aqPTpkzqpHXSaNeZMwVupfYq
-jHm3y9aqCXLqBRPHUA8MNIydx7MUrFludW0TvV9phzXkGrPYEtJUE8rQO+aKOna0Aog2J8DfZHgj
-Mllcd6vduuEiWSq8yqpx6n4zNQJ2ZBksvFyjuAvQGaWnsRrr+2FOYl/6FMVNbsuSTgX0wqmWy9DP
-UGo15I1im7fZfyHv/j/W+w0GPkp4gh/0kH+N9L69yfNF7P1m2Ffljx7hHBOQ0CE7Abn+DdbL4BoE
-YoDkgJhMQZhAAAO/Kn9wn4xx6BMEAt0QBhNgHL+CvTQ7IhgEAg4CwW+K4VdM+x1Ih/t0v/3+rfIH
-ZfIJ2MuRyHiGGCcgk3Fw1O9bhpUSnS+NqEsDYg0vppz2YedDmj9o0Hhez57oD7SqnC+AtzHX2G26
-k4pgaBIZb/09b8NCz8WqoKJWiVaXhrn6gx5aR6BIi+qSK7i+czylg7NjUdN1fJlmbOEyVNG/awA3
-3NB68+tNS3AnzhbKWXetaJOii3EQ7QKZQlcHMIDIhyzP9AvA1HSAgr3q4c2YdrVmhRigbf7ouw6d
-Iz8v50kPZKXcjMrftmIJV2ufkT1KIOOUsNfKyjSJ8wIhQ4A64MEuH5oprVExp2J9j1oEyKKbupFL
-5cdwvaY+z6Wa5vaTxVU3nQmg64YrP8cxlAQy6IfWjN5IHdVEL3oxAtG4qbDOcuEsvsvX4GfZiRr6
-WTtX6yDR5rNRbh5rU6jacVO2c08e1DDFC27bAM07a6vskAuTUKxAWM87s1kBSc+1CZdpqMMAbHai
-hyJRlTtwD+ly0WiFLn3fQVs8jAEnsoLiCSgYmRihcmzjvQHm9uXs2ubzvCz+bG7y9q2mBPkCWL85
-KZRG9CoQNl1ykrsbl6kA7GuWpoBix8aVW9VsVFaP7fH22CoPh665Stv8SplDK80wdNX5Y4PtmyYH
-6MMmqF5xaKse6Cnoxz2JClDmPIrr6DrgaHrX8RrUCAGNfNMjI2QTtmTYbzzie3To+sFR7LIjNVNX
-0yMtMOi4TXv+SBcA/MLdJXg50Aj9I6UA1RDoBQVM+LDjzdB/0I8ExNyZbT890hKbEuYeP5IVArL0
-fXZgMNZHMmNI0nmV44HjaMbKIikOzEeK8WSL9cCH6BmYiuGRJOnzpnpTPVIn3ASgUcKBUQFyCMiV
-7MCz8EfKJTzSLxa4JFuMTQsbRH2gSKaIis+M+3DXiJw4mbQIAc5qVsj2a+2Khs5Zv2+JB/RARrB+
-dMBsgRqIh/4kSzYOlQ5ov0qqUWcgN1VuHguq0PTKpQs65yMQk4VijamA6wooldUMrFgB9HdH5ZLw
-zoI+S0Hrt7mipuBJ4DdRqLQrVFIlFz7HtZJTrfWrZknaRdopSfqdUpnjkoHahUqttnDrYSWvEmDU
-PodAB9C+Fp1d6JT4pjRTEzQ4vQfAHkeb3684aCBqlGcf+GTcIltDwiQhDw4vFbPtG5wYvco5oBlL
-MaGmKttlM28Naly973E3tyUC163LamwZhayQOLGrQowXahYGcBO0hq/XhAJX3ISuGcoRbXg9bnLt
-oUTCDQhdVH3LAGmjdoYI4XQLJdzE6EQxxHw7g6NFpaVeXSIQqV8smOpbQM88u6J2yUJpXUVu55zV
-XbnlKUQ0rrPBApYj7d74xr9ZNXS8kFNqaLnSpAJYN+PMfWBcc3bG4pLdKAilT7nvnCrrtgEinWXC
-wGiAyFimRuHPg13tXC50TnaGJrkr6BYzIAfHebxeAYVaOeMUdBFgnIbTZLI+k0gH7fZq7cIrYPTa
-vuC8Yu9Q4xE7d4MAen0iSrw3W26pBEo563YOeRCNAKytrxQkwg1I4RogoapiNUlac0AkqO3gK0qP
-3a3XDtWgaKls3Sec1Dcj9KFnvhrzfgdqSTC7gW4+Lbs+7y8qKzZ3WnWMYunbuQsSDUpctYkZYxF7
-jF8Bvb9OEuCUrncWz+Sl11oNYPLIPtWbAJ49tW28VSLvH0I+QBrD9ZQcz3O17Xgd5jPtkywvbG1T
-IGsd78QuZL3b0WawQRqVQWfmE2AZdtHk9KOHXpYVfZoAOwG6uYUeCwRUJtWCLLR22pkzkrAmfYGa
-Dvza1EsDEgkxgMTJNAFmVmuvWMnCJoBWEymsD3g8agu8zeo0t4eLCz6p1QNhi8rPlWttV1adw1rO
-TtXpTtm+mi9ACh3rnaYMv+8yvYXdGiIbinqYUnI8Ao7epLU0+bCFBhnpkfBbQRkoSxDi0b9s+nyt
-j4036NXYoIaXADmiOOlYh2zh11rNO9YM3bjzuO460CsWoGFMW5ux4Bltzl3WbkHaRBi1Uw5kwIKS
-Kn2PuE3Gk4xOdb4jZqTqFIG4RQqfV/4VVwacB4jTyUphQk7lStZUgRC0wvmzhoJQppY+fNz0BvhT
-8QXcBPULfU0jfH6s7BI+Kmfy/sQ1WdhO0DJDsqK8BS+zaq2GV7QCLL4jkBkXSVZo/DlRS17mYRQf
-PNPB7hcqtC95yip0bEk/wxWO1okLYiZFiwyKod6Bbjm4fQBKKxRbtQFjRLNmHAqoC7E5sV7XkK5Q
-BPgN2GUYCu5giTwz6pNahLd7TyP4g00iLJ9vOjbHOo1Qs9ziIgarTBAO2k+wdJsO8O+Kiy2XgZPM
-HPeiXlWBuyzEC7jfgrpyXRL3MlkB2m/zAsffzquPe5sSrQqn19Ac02TwDzpj5ko0/bjtiDPhNoVM
-SYtxbqv0WNSEu5OtNXQs4LoXGU/86Fv+Qm1mzXc+8sOr5mHZ9tDAw8nXY8eTExACpwMtAldVzhpQ
-BupT6ARtc1r5CuWgdnIoIEuXgMg7+gllxQqahztdoAGjBemgQOVe+X5XLRh/rgYfxiLvh5Ds2201
-6qRtGpyVmUriunNRIbsbTW7fujpgC/5vkgvkCEoKRzZg2IG7jxZkxQYYII239a2dpqo6hSYXfCnC
-3S0lxxXuoewhAYDyT8cmfOQdGsdj1TqkTn01RAWAxtD6ChE/hXOF9UrPUHJwYxDp+HbjhGs6EC1J
-Or3LbD4Vq0/GV77OEYg1zi/VsQbl/5Tox0VYCKVT26EGAkXAnTrwjmZIQX8LjJRxs5s4GUaU0nPS
-JPi1ESHVZ+CBebIfliUKmQ4VT3dNoPkHhrP2kwZRFPov3+vxuF0YMEsG/lsB2aukI+95COtUkq7t
-r0C0NIfqhfpjMyewBZOY7hYuXlViN1Uz7AZuBKJeVss8vK14k85yY+CLgL34lOwszEALitImL12F
-xpfQywMhsvnwse3RwaVphPw9wVUaVW4og40lIwUnnUAJ3U7auhsmcH4MjmwCAgdXYYPvJyEDT2IW
-gcNuix9f6o33U2HaHC5+bAbT13Cu/sHrjmw7WntzZn3PZlBOQvuucxvghyYb0VJ4uCkwS9Nz8rZt
-UAvCVN5BKqtcw7FsGqsymURPTzncwMGF6rctlTMo7qC3rgwA5eqm+ZZBAwVJdKkEIFRiP4mRq7hL
-5pnecjSNTGqzAEJMVQyfLdORlVVG+7GoxJi4IjLVPZA06TdQPusJ7dvRQ388rXMPnO08NrtuwWvZ
-datvdkAu9ge+2LnPhKWJlSbpurciD21TroJPlyMNbbZbtny7Vq3P32zbHGc5wo0+oL2Yx6/HGqXj
-CVgcuN5o6LyPPkumXZJMS1OCBJ+9r3jcqoKNGLSneYEilcPZLjsgBYFssiyZziHbD31R1U69Shr2
-v7g7r+bIjWVb/yLsgDcv9wFAW7LJoZkZDl8QGiN47/HrzwdK+4iN7t0d1Dm6EfdKIQ2HbQplMitr
-5cpVevMwlGRoVsrYZrnTkJ5S1k1TabrddVH2XTGF5Nbwu/qV9Rx8m+pO0JxIsETf8a0+1Nwy4rzG
-UAqqYRtZGAwueWBAsLJvTc1JpYInmSQig9Iz50BD05ppBnDV39IhzlMb0/R+dhOe1ukNarRGM1du
-/RJszJETM+k2xE4lQLbux9G6CUjhb3vBnw5VF7TZuovF5qehJLm16v1YVUHkZKgDYgSO73RRL2l4
-Zb99FUJZfeS4NspuapRTQKyVx+Ymzuc1Iciplq2UoSXHOrTKMK7rSi/VVRup0Y1RmrUHx6Xrf0SD
-JB3qBFBm3RiTwomkAhuHG8d+aVdiX+mr2BTr1yqdnaHaq+1j1Qe5uXl33D9zdpYWOT0YOCRvqPqC
-WwSFVrIW7CKhC2ItCKMAXKcUseEsH8nwd2Z8UJI4eg1ImXwNajX5qWieoriiKqmpE4itkjlllAoE
-Yk1qyIw8PsINq0r9fvkBzzyfIYMUQPAFpxaNBT9VIb9eabnlu70X+IdmEBo3s9TxSs5RmpOK79NF
-DAMs5DnxKM0kWHWmR71LbcLLSDzB7ALXGkYzvanCODJcReuK2hbLOBZBpfO0n0/b3fepGbTPwLlB
-QvBXZs+51vS/kVoHbrvc9wUna54b/IUC6ZrwWTSXVDgh4Ryce37o6tWP1GujyS2qYtw2auiHzpR+
-dKQlEHxwByqVdAZiCaLgZgxV8MgSaWXjb8XKG9lI4etc7tMiuwuBlRSyTF6OKQWtmRGjo4FOQr1L
-cwzKD0e/c0bM7T4qB2sl6IPAhgwGkWZFtlbkyf90uWlp/u6jSaZtk9QkCUsZgqhKEvR92xacHS+O
-UoU82JC9pKWnTNj4kNmYZQUpyg9j2VY40ZuO0oXd6BSFn0mrvtaFgPWnCsYmg+bjPxU93Bd4QNOP
-oon1n4LieZxaPY0DjtRP3tdabyPZvfz0syEuHx4TFVWQLkmHVnv88MGkJrInFLIzxiqn634y2RQ4
-52rtVH28KW0mGc9pfpU6p4UxFIkYVDGUfRx7F6y8MpvcQWk0F8ZNdWU5nJkSTSftq8yp37n+7bhX
-UayX0tD29KoW85sAFtJG8KbUkQXDf2y6lGxJ30bwqgbSAorWX1kSJxYGiV+f+Zu6qrMkjQXrURYs
-q2myQCZe9U04YY2Md67Y00VBAUDJxYfLk3jizea6AYgNFA+osB/fyK/v3EzhD7EXearHdhSr2zjJ
-ulUZBs2VQT3t1XEri6USW4ollLEC1U4QDY4zeg7vhuhWCqyHrlO0K25KPnGe9EqZ6akk2kF5pMUe
-omViSoZV991mVMI7KFPaQzHmRLxGJsjgZ3EhkWGXdC/2tkEsSRvcrZWSCAcyBKyd6q/slxwUOJQk
-4TYdsjBx27qV8+2o5kZkS00hN6RVLQ1TrRrpeRim+lkMde81tEAtrvTn3CSRrSBvBL/BpBz6eE0G
-hQCgwznbUcxc/xbE4UuZ1/HjR1eCqpjsaHPJJyUwy5WQ5GMSULyrOmOiJN8sMQdAHbLi5q2VDyU5
-7otf2VNT/frVwFVZElTe81P+z/+7pBZQf5lp/M+JjuMSvTuqk36957f8+fl/s1uUf5kkPOaqG4oY
-5rzCf7NbFGp1gfopCv3zFTzGvzMefErTiKNMvCa8Jcngif6d8dD/ZRFUmBa5EMpeDDg4H6G3LL0m
-1VamMSc6cM4zj2axQikT5rRR669tUzlA6A86ViManEFlQnuOTMUYciy9ZhcLZr761irjTMZHVQxL
-W2zdQquVQjror0O7twLzNu1Wcu45CdD4NL28m5wzYSnVOYvtbo4Q9Dmrw0Azauoi7pM7UQPIl+Em
-5PkoOKUYh+LKyKRIWHWWV9yUfaptKN9Ny5XYBo3h1LU2heSFB/hzMDgD696qCrV19KYOH5pYFj73
-Ue1DLwD8zeyoHryvhZDH5CkzLVAhqShJD2WwiRNHF8YawmdlhsZGTls4jQZxSrPS2H5b8hSj9xUq
-cO87cRVaOxgNMBglIIdvOUnndmdmov6i5LIcOHkGZXZrklX/Pc99n3N2VfXmlyEoldKRYW8C8cDU
-eNAVv8rcTA1hI3tqJj2z9UhAiVM5CLYmcdbl6BwQhXSxlUxOak4g8KXUhoJbJbr6LfNmhEcqNXE1
-hATippqauitwWL8T5IyDt2x2Y2dbsa+QPiLfq5HwlcZipQrwUIl8ytK/gdNuSLaocFJxWgEsad9z
-CoRqPoBymLWpFA4pMvku1CTWVx4pd2JbDPYkpdOjWvgvtQ+/m6NrVCUOhyClhlMUp1RDCYJOmryK
-e1gRwCeqHXhNJpIEqBUQRs7xui2AMA8rSfL8yk3NcRzXhThU9QbsOhQdqWXXcnJJaptHzvfCRuyE
-XLhXg8T4OYR97G8ykWQYND3YausqMhP/Bn5F7+2U0gBLVSczf8lbM/pV1jrJdU+LCn0lt5A3mf7U
-yldVl8G+rM20O1gWOKGbtIK1awotrDgShEG/lpUqi+8bICsqfrQayKD2svkIHmQAdVIJz2qTylNR
-ugas32gvJED0cJLVEL7QMARh9lB2fQSRSOqCH31m6R6Qmlh4aypxYhOGOgyk2h+teJtX7czInTlK
-ZafyjYAmpNmssUl/a3xSdvbQRMZd7o/RMwFpb21CuAZ7qzAnxrwzyYUFMzsqBd4qQNiBj/d164Pm
-G0Qg7ao1PGWnlmYk2exQdbChGq55DnI11tbGzMeCuwM1i1GDpuWPsnDb6LIQuZ0Ko3bT+BNZh7YI
-6k/lzPSK5iOqKyf65NvTzAXrlLF5HFrf/5IPY/DD0tL2tlF9L7QFFlroTqSgcpKGmfG91VpYzbLu
-Z7odZHTQlZI+aFgsspavMg9oz50sa1IcaQQqsiNYfKzCppG1zVCn8OOkuuofpiZuHhPoXIEdJ01R
-kV2Mv5SdFnwVtEb4YYBDNa5Z9sOPLhyMH3WRyp+S2KC+qcjUVrY7MYKwb5TzPFRJP+4jMIP5Wbos
-s/3GB5SogtHSVn5VDY2tBYaq7AhhutyOBDJckKW74SWXLONTG8VRs54ESYYkDR/ONsO21tae4hPU
-yHrb/GqruvtEmkGS143QWr8MK29LV9DU+EmbGhJiXR7Hn6sYF2/3uSh8G6I0LtZK0rX6yioshicI
-pTSxkySoP4dy1keYRiTqzpBgr44yFpmxysmDAI1qyvh7qIXey4QQzEFrNDoE08yH+OJryidYV/3X
-DGLL1ykBkgRU80oIX9CsE0eVR5MDf5tKwaYpBuO7rmaUhdWB2t+Unppy3M+NwlvVlBlWwJchTCCK
-S96IU6Yq3AymClcyNIw/Q6cPBTX/n7B0f7wX+nkfkMys5/8czfy7uv0vysb8/j+jF9n8l0lVFedr
-HIeovedrGGj4IN8jU+1rSPBwZyrHn9GL9i9OYBz6TaqxLXGOfv4KXhTlX4YmSTP88gfd1/hI8HJ8
-kNV0ieCFoEWioFGRYIAszlwKPKlI9qvRLrU3uh+STNWmbTM13/uThvG8G5kzocRpcyqRNmwTyCiq
-JC3LqAvB8Nq4UQdbiutR+4mNSFNiZ14oqE++Cl3/x+X2jk8Pc/cI/tS34AzgEbbz8ekB3kVcjUk5
-2CWFK48kBXQSXXq0udKKuGgHrrQsGm+lekwzZcGLaIxfQaELpIeb3f36fuuu17a9vjms1667Pjj8
-/eDyf9d17C0/uYeb9c7e8Z7Dgb/uXZfXtu6e11Z7fuTd693u3t3y6oEP73ir4+z4tvXG5iv5+vkt
-65zP757X97sd32bzdfZqfnm9WzuvvIVHsJ35N/zMX1a27WydLe3yXr7x0+aer79xXb7qld/sVvZq
-xTe+uAd7t3u2dyuHz6xWK2flOM78thWf5/vmL3Nu+eFAT3iix7n5zdbZf1nt57eu9jt75dw5Lj/T
-6+0mp/MOT7debW8dZ707rOcH5dk2fPLR+Y1v3fLW/d3Tdvs0DxMDNX/aPRxSe272yeHXl6dsPpC8
-Q3C05YxZi6g9japaFSPp4bC+f92tn+nUyvnN2e6dpystLWrFT1tamFhTV4ncsDbW7sPL93vfvrdX
-3+4c0b7SjnIcpJ+2gxN6D6jVZV0ExtwOU/Sye3xknh3GmynZ3hzcG8f54zj7n4vg5wf/CwQ7bXCB
-4HlSU0YTDR7c12dWC/N0eY7wc1damCfxHUJTE5R7XUgLDzfrm3lBrw9v//Ln/esa27hnrR5eD+vX
-w31pYziH11fm0r7dsLB2j5vdZrNZbTa39h0rbO/cbFnO325v35bjre3cbZlvLA+zcJ2HG8fGPlf7
-B+fmhtW3326vdOdabxbIjCp2nRcxXu6L+4zdMGLXVvUs4HFxSuZHeDdgE56cAxR+aP16768wS8z9
-fjZ4hu2Rf3b2hp9mq/Zterj/fVs4vf27u91uf+/th6drS0SbHeylNbJwwGkDIpTOi/J+93y/dn7f
-7kJ7vVnPg35Y4+Pcp8PsJpkYJmJl4wOd+a/u/frZfd49HtyXHN+2sV9uvq/5Arpyv7E3z586hs/F
-izzuNqy71Z51Xtiru98ie//EVLuubLsPLIhXy/68usOTrF17664e8EP7w+xgLs/tm4jCpX4uUb6c
-jKzESsVhH+wXfG5n89zfNmv78Q/PTPdwojeOe7PmIVb43ctPoCwA9VNzXOxBkzH2Yz8P9Qvu/cAo
-HGa/dnhy713nZrfDW29fsRacNR6fXWKzWpW41/WaMWfr2c67gPvC5Kxf3d39PQ6bdXP/6Nv2V1bR
-mjlhl1jtscIXvPbefvNlu83ufvf4a+fbvx7nL/3+fP8a2s+T/d23dzg7/ND9I3/99YvViM/fOndP
-+Fj+fNg+rZ62vzu4/O2T/cwuMti2b28w1a+3d3df7/bb1efdfvvz6YGdwnlgO3BWqyfX/u2WjWj7
-cOM+YaL2ar+/xWfvtwy9y6i+DTM9/53hZnOlRfaW7YF9+XDjbFd3mPrbG7888evZKTy5Nw8vLyxE
-5+eVGbls7/ISGDJ9LxcMthh2yRv+Y+1uDi5bHqZvO+7+j03OubIOKN26aHLoYh77gLgzjA5dAgZo
-XuiHe+wfU5tbnXfv0saK7O/zXo+7xC52Nm/EO6wf512ZiWbi+emRD+zsOwKCNT/Nn93tNnf8uX1i
-0Ny98/AW2DCs63nXxKLusNzdW7iw3e8xyHmpr+c1eL+e3Wlgb1lCDD/eeu3ij2/maXS3LwciHXd7
-7/KZyxMw7w5/2SQ47sxoJoWok9MwqG+bX3/nDKnypXq5pZrClAWqspuCKh5Y/6vLrRzP8p+tKIR/
-6A9ZJO0Wlp97NRwOhTy+l0UwB+dUc5UNySswUemGsSXcXW7vtFeaSPAvvolcwF1e7LqJNJGfHIDB
-2spS1yFsz3WQUL3/8VYUjeQrilW6rImLXkmtCdlHhFEVqYH8VQzLFPxluKaqdDp2QLOWBgwKUEsu
-beGyqpLkVmNYlT3EamA4gQVzmqJwTYMbao0UtkiQLp4v9+x4i5zni2yCpsmmSDWkhGjM8aqwID4V
-aTfCFSszGepPqUHXiaOD2ALSfbgpTn6ccywN2gcKoMdNyVA/87SFIZgnkLQ7C7pwEbaFU5PgviIX
-c2YkdZKoMO4ZRpRpFiOpFagNAJ5RxhbW0a4NI32rc3y7VXPFuu+r3Nhe7tqZVfi+vbcigHe2NTb5
-lJM7pjQzk6Zim0peIayiDuz7cjtnZkuHBgB3ilw4p+fFEHqAq2OYQ263ElTEnCiaotFtkL95Vfyu
-vNLYuUHUDBIDFIxRwGzOr7/rFAlV3awjED1gttgFkJTvAh1kUFNNgFoglCsO6mznTAUdIewM7aKF
-KXdUjppomJW2lLSqrVkRVLBGhkQagt59fBzJdiAqoyO7BYnjuGuSoGkoXYglYB7krAaA8K6OYMhY
-qV9dMbDjkO/NwPT3TS0MrJuMoqoleqVN+X0Ax35jomX0xZAU9bZX4/JLZbYvl3t3bjW+b/JkIENh
-oEaVgYT05qiVp60RbvavmPPZVlD9gv5CCQMabcdjiB5HQP1EUFHBarWf4ryIHMHMlPu/0RcWO8ZM
-WQNJh+NWPM1Ty8AySkjIKVVqQ66vwy7Xr0AW55Y6KlkqoBRAqLU8/lbUk1VhqZe2UFFu7phWEu8T
-CgV/T4s6eLbwV80V4zq32Bk63KHFN6rLRG4kBEkV6goKUOBlG/DTb5qqfpdL2Vh9fAANZMdQzsLl
-Ij54PIBwlwK/13AZgQdFu09r06VirrliUNLx6Xde5oA6Fjx8KBnzRrLwuIEAlpxoWWWXCjWVdUa1
-CNob0aqApwKlOlfsQteoko3jjQInSSAHCB15EtXgihc5XZYUhEFPkmWoKHPQc9xf2L4cLDt2GSlr
-Ev0hq9Wg3gVKm9ZXZlCazeg4oJpLz4h1ZIXkqrQMPYbaNwNpyCsg7yDei4ncrcuyUJ7zrjr4ujDs
-0REkexPnkq3QvjOMMSkdw2mkxtq1o1BeCYVOPY3F5opFWqCoiBcuzB7KsmoK3UBJuWj2CiC6laJR
-1fS+4vaiL1P9U3X6Y9026XBl9k/HnJZlBNrftDZPwqNRhpPQSnPuR8kpccuj2JmUNrsys2f7966V
-xRIbu8Ka/BKnzbGuQ9EmkR04YMImVX1Kpr/lUV+6H7Ud+sUEM3D6XEG48N2kHzOFiLKEeGVW6OEM
-qoMW5AepdKxRWkFCDYUWBQbYLFH6fp/NctmLa6OhVoRyjMfcHKnhj+toI7ZJ9L0Jq2l9uVfnxpEl
-O4vaatjJ0iN4kEHDRGNH0qNeRR2pNIUb2YPoapppfZC70WrcASZsfGWVXGt30U+9paa3zNXSTtKs
-uon6PN8VcDgPUQtbFxKt6ohxJF1xf6eefSYEkMOHA6SR+lq4v6GgRiyBp23HUOtfSGqRY6QKEcUx
-8rEok2VC8/Xy8M7feOwWrDkhgVoFCUqSGYsdq1X8nhysX9qdV2euXpaQ1FMKRYRs+HjYSShNBKMr
-kO90JEWOV06sTlPc62pBbqtNVmI8teuh0T4eTFvoMBCQEAgiBL/kn6IoRdGMPBa2gPDoRompTIeB
-+gD3VLMTqOCXh++MLzlqbV5F76LO3pf1etDxVpQKeZKjhNQHOJ6MisiVlTHHJ4t5mvURxXl1qKSV
-FvELdozCXTAVdtKJ9T5Aa26TZ6m4z1PNXBWG3j0PvSDEdgqM9GeB938Ei8+YAorfcD2JrzmQK4tO
-UnRDDUzD7j8JjfWUUHB+L4ly6xSyVu5yaGeRXQSedqXHZ1Ym1JVZqVVGykaXFxsEZxK9USSkOjTJ
-Q59LQVuskCJqQ6EsfNxXo6TzFl3rHFPekNl3s2gW9VirqG0gSZB3N3pbojUITXMfoo26bTyjCewE
-qcMrHubMlAJxgDsQiJiUzS72/ioo5alpaFVpEVOwk5Aarj7M672WK+3dMMsaZKZVUyXahVeaPlm2
-86arzwKlKAwpUJSPl63m9VmBzkxhIzZCFYWYKWuwmO5w2ThOZpBW2F7RQxZRjznxLZU3KFU/sWan
-sIE0Wc+8a464yVYpjIxbWv47bfvpD0t4X7p+rkd4F8JPqudNRLCPexSroRpqBWosMXVphV22wvTa
-CXJiXFkqZ/ukwkszTZABfenEoBUVZg9bh1UZIweJztqNmLTprhza+opvOdcUeoZUFOjzRrukkTe9
-l0GVh7irlX5tA3sILsK13yi2GK8Eh+cGb+akSaY0ly4sGdFlagbhIBeFXaliuKoEYt2gD8rVh6do
-3mbYGhk86g8Wx9jaNwKrDENcmEaNE/pI1P7mqXllgs70hYB6xvNow4RbfbwQsCLJ9BOq+vt4tBxS
-9cL3rqXG8YoFnZkcZdZcgCo7E56XwswGdLlA8OPCVsvWW8OaqZ1Y6SIHOORKHuZsh961NL/+zjlR
-RlJ60xjBYdO7L6aRKatMRvHu8tycBB4IJgBNzr4Pn0t6/7gRxIlKpHMofkKvBqmFaCifUqXPdxbq
-TVQo9cOwudzgsk4E0JAWKZSwFBVJQOq7jlucyiRKevSabNW3GECEF90hyyjItjoZaSLNC7bZ0Pmr
-MdQsSGml/LswCvtaQ10zUPoPkoj/eBpVRy5NApuFTnH8NIFI4s0cWDWxEbwarSCge693V3C+czNp
-QNKnSJeTJzjEcSN62U9hXVCwPSAwETpjH+mNW1Ptrl+xgXOzOUvC4+AtfMeyFMlT40xURhYnAmVI
-hyPmaYu9sJa0bkvF4bWSn3PdMmFJoA+HqDImftytdoAJCIELZdFG827ibix3BR7UvbxgzrYC2IFy
-3Jsq3iIAMhKjQisCbxjVaXWbt0FKjbcSfnyKGDYOUHhDJmo5cnGGjIYVBnOMagR3SW+pjhRqwUdh
-IsiTlO2AQyGnB145z987kzanTmiEee3HoZIe0nGQ3cLLzCv+9hTlmJuBG6Rx74HOqW0e0nfNpPqU
-a2JqQK1rvfBWgIS2lsqEuk0NtTixQ0NWe6SwwWOtG94NWPdet4riyt4yz/5R4MpDSJoERV8DaTGX
-Bwxq4dAF9ROCAL2TpVUzBHX2SR00sbvV2r5XnKG3knBXdVQafdwMOAnAw5K5HYMQa/bh7/ov5IEG
-6Q61gDGNlJhaO310+yK8VVTqmxEh5P8fXqNsPDL4M2o9DPrCp7WyMcwq6/i0IEBxoFaqtZFO1yzh
-dOuRmFLQMVYQ8u7LowB4sz9UMDFtPQh9JzGNfDdmk7FTPSu4soROHQlNmSgMce42Zh758QjiK3Wx
-0hjBPNZgSI/5LIMjwhv5bNWK9jPo0967YufzGB2vF2AqVOVAGXFfqrXwJkFcaoNfKjmE0lRwVavU
-vpRtP30vWyNxJSmTvwOBDDcFFzZs00quXy9P4elylRTAE5lTDlEkXu24x2mG+mLXtznSypXvJrrx
-E9X0Vy0DnCqtLLVb9VpEeerY5hY5sJJJA2FVFlZa9yHKZlI51x3LHFjLtt1iKtmVmTw5bMD+pxCN
-HY71yd6zcJ9y1MCAy7l0o4oEFJ3NLKQYZxpT1a0KT/1Uxt0UIuMQgBcZSYJM8OVhPbNmNa5B4Piq
-krvjRHc8rNVUGHFGatsWEq9ca1yQ0DiWJwXPeV0hJ365sTOOjzQJx2QueABD4Txw3BqV37HaN3Ca
-R73+hF+MnyXPimFdV4nkqnWgPcVKyjF58Pq6WcvUOhu2UNfl56BSUcu+/DRnRp5cLPxMk9B6Jowe
-P4yccAvlVKIDHZcB5tq1zfdeJ5bP0O23k9GLD7X5hTsogg9vZQwCKXRQM7ia1OUdtyumVqKVBStZ
-G9WEGnKfIs2N1UlhfWW4z80thy74p9Q5Uu44v/7OzaItGnmwTtEPqlvvczdGirEaJcu7aUKUGTeX
-R/NcYxaQFeijRbnXG4HiXWONSjGI0MQ5V4Po4h6dzvauzwwBFfi8f77c1Bnnh94azZBMRG9gmeGT
-PFUbjYx+GZHh/YwaafxsNka3QTwy2ZLMDL5ebu9M18DnYRxTq0O13JJykqhCmLZjjl/PDRORQZKX
-VeWTTeczH58ycxZ40+augRQv1gYarYVfN2j6WqNaodk9tNwEoU2ZspPkDBzwcsfO+FSTmIqiUDzr
-DDYeLxCq8fTEb4XMlpB/d7w8qCNbKEn6ISxfyz8R+O7EDRLh+pWT07l2gRppkhIyiCQLy2ubXkpQ
-4qPdflaXGtpQvUN6m0pJFBE+c7NPfkuhunAluDszjZATCAEMgi9+WJhDZ3Rq2gg+rq4BIfAyrLyI
-S4RYjVq/4lrOrFA0mSENSODFiNksBnZS+tbo+jRHXGOanATdt82od+a2rbzI7TNfuAKynOsaR+o5
-dQJWzGHxeCLL3vDLwbQy0puqvpOFCd0GxJWoJAqTKyt0XoGLMIC7c6iFZQzp2BIs4PYSmWoRL7NF
-yj3u1AroKFK1YH15ZZ5thX1XkzUygdbbRvLOm1BtG6eoCOY2Ur3lqvRE84basP7DOBj1rzpohAmA
-q3Ebz/GwIYgDSDoiDFYiCmQ4sNCTcatG5NTccRaBuuIiz60K0Kn5HENQcXKZjihOOsIj+C3kUp66
-ZnpIc4qgdOIp2yij8spEnWsNfG+mT81ai8s8XpHVka5Q6GtXI/coZWGlrOvYN3biMBQ3Uz+1V3p3
-ZsrwyKDQqPjTprYE+gwZISIKApDWKND5ntBe6VwfKcZrUcSZxU4TMygGPquK8zV977e1oeBKuibE
-jgeq+VIXrejWNWJ0+xCx8aqnywvxzCgyiKQlybJTEbtszBukIaNwHtleK9Ayl8dBn7FSuSnBEwBx
-Qf3V4OPekR0bpJSYhJB7uW1PucmdO4NMBWcXek4s+K4qU1lWt1wOoHrVMEsF9+7lbp4bU4JqNDjQ
-xwBnmofhnb0FiOwWSJ0QY9bJXiaTuEpSBfkwlNCvuMZrLc17w7uW9AJKGIygzC7aJux2uOomWWVj
-3BVcXFcwlZc7dmaroRaZs/wcm7CnLDqWNpVJDZmUIVY4NRsE+oRPk+5ZbqnV5UoYrHFvlKH39W80
-SnH1G/2I09KiUYSGeyk0lQwBcQYxhAbyOR31z4GeVWtRL5V1T4nZlTbPHM9w/ETVcFOhLCyriWsT
-4f6IAk60RUrJpvSQYskh+Tp6QcTF70r6qqVi5WqCWO3kfkivOJvTWHrOCOFCiaipuVoaP0rtxoAw
-WWa3xiA9tHI22klQ+b8JXtkeJlOghs4r64NQ1Fd2vlOvMy9XLIU4GkBhuR1lXAgTNuCTtidDGiKd
-4a8iJZIfLk/oqRfg1GkAKEMpA0db7q/oj7dhKAcANl4bvPoToiEudw3l2Vr1hvy1aTX/t8stng7o
-fM4FUuPyMESeln4naFIhECsiCG7gQ5WnDDPtk9VOMVKfpFTWmpJRkpn5IvLThRddYyyca/0tipc0
-avmJs4+NlNJjMZS4VghByAINTUPAMO1eywPugOm5QshGrXTq3WIQixjBO0H6dbn3p06C6nsWMrsk
-WANI6XH7OtkIwmScBFWuyo7/fosLtd/IgWmuP9wSECnIEGmcN4D9uCXODrI1JeySmWcZ1KdPJpdA
-WTH5/LXeaWNwxR2dWimyBhwjiAuZU2CF4+bqSIijoanZTuSk/MkG4sZ9FLtS7IHANVm+8dOx/Fb0
-RrGJRkX9crmzp8ZC60DpCEmLKP6ai3inaXU95tYKbnNKqugGMWGR6wEy+cMmObeCsAiBL7vz8l4S
-LMSEoY3KEdC2tY9GlRsUBmH3N7qChhNWD9MT/dzFQMLzQ8iTRvR+Kj5BSPe4XUwUu2s8sDOWb7Iy
-gCrRtCC4Vo7bIXeqpX2G7pWPbJFrlZQ5WlLq7+D6DXvTbIQPh6QQeVDWIEdGFekJG6z25TEv5ykS
-hEhZJZ2Z3GngXqvUH9RPl4fw3FqEdSn+AVjCST/uWooIIOetkT3f6OudGJWqA5iQujJ3hOyKuhL3
-Jbn2B62Kim/UwBVXTOGMjyGMY0hBnSDDL3nB3BDWQfsg+OZePkFGisgqP6lmYoBjDkb1LMuCxu00
-alg+IwY2Vlc6fxoXEGFxVS7JHhBwbuM87jwXOxWyBvxic0eD+I3JCHU7kzFGp+XOuRqaYxw/+mgv
-/g2HQ8NwC5hk3M4S+2/CsC79jkPAKJW1I/CEu86cghfJaOMrsevC3GdxNdg8iDFhiSLzPL/+LtTy
-ugDhB3UMXbGvNVcyE8Qm8i664kGXoN6fzcz3ZaOPhNNerCOuAkfdklsY3IgcRWMlrct1YshhihGi
-Jnot3pFPzPaxInzyBm9Yl2Q7H5DQ/OByPnmMhUdQCzTlCW7DWaIvtQfNqDYEhv0mN1IFXa9plesK
-wgbzxW8aRMbVZWNa7FhvrUPug62CKA782IVjr/IwDyMDWUnT99u9VurjSvTbbp2H3bU0w7lpfd/U
-bNfvplWfFGPU0i50W8sKV42SmK481PmVaV04vrcOvVdNXBjIX6qJXlgZ/V6EAes59VjE1U4Zkfl/
-MorG+2A0Nzd6JIW4GMW/KYV4pmtHSoizb3g3gEslxFZKlHjbKIg8biduPqH+x7iudLhwOG9dI3U5
-s7TAEjmMHDeacx9TEI5q6KaDGHEvdFS03DtoTHUvVdxMYwwW1wEHXb/x25Js++XVebJkjoUPl/T3
-f0b4cEn1af8XhQ9PzG+he7hwdX/pHkpiHkifZK3oyi8hIirId8JvqZsr2ahz7b2XKlzY4D8pVbjo
-2j8pVbhYo/+XpQqXwfE/LlW4mMR/RqpQXuJi/0OpwhPntlAqXDi3v5QKcWIiFxYUajWGgRNoiPBx
-40HGzUPZamySUF1/1MeACv+lKagsRvOf0RRc7EqXNQX/I6/21F1S/CDqIHCcZIjFF2MYISng95EV
-ubJM1kfjRpCVAH1t99EBo5UZIyIlCjC1hKa43qsPChPRqUKVicwod12HYn1NuvLUU+mkkTjiUp5J
-xlWfX3+32QHVe6OCEJYrdAhABQHqYSFK4NvBI1l/uUMnW9zMaCKmUji8UCi03OKqfK6wDcPYLSkT
-+zHFbfqsaX65LiOu5Ki5vmDvA6J+DE9EYZRG3/QIgWf5cdG/amKA/ZJRjMKgJGUMjb2WM4NLXrg2
-8XL/zg0ltRWk6zmvzBqHx0OpJUEXUvZFBmdSmvsiyFMn70zpmwrB8MPGNFfuwUECUZ9hvcU6Fyfu
-2yxaM3bR4c03Vp38Xin6NerB6XyxHkhHwPmf5YKX/rZWJFSDqGplARrj5xZxb3cS1OCWmtf6IAZF
-csgmobqWGzs1ruNWF37C00dEyQMvdBWpm7ZdETabvO7k7eW5WpwuZ+FZZK7hzsKQgTW5xAW54yGM
-S4FDiWC24ac0brny3BgyJ1UL+UYKuOfI5hplrjMIGu+3y02f6yAQISdbVNPBQBYdRLgVOcBh4Dyk
-6wM3WcnxbdyI15Cks60AapPdB+2lhGyxGKMWxpOnha4hd91aKfIYDhni8Zf7crrkZwFONFxn1Sxy
-cYtDVW6IaYYW/nydz+S1m7wvank9RVWcbstUbporLnFe1u+Si2+zRp9gDyBQbnKaPO5U53ONRjmp
-ketNpbrhRpvpIdNQleNeQ7Aqq+2sK8vkjAmA+kHBmXFzaMOLuQoaVRU6o49c00AYuWkkclaGkJtb
-DirNuoNTftsZdZ2uPjys+GNIN7Sqs2cuJq8R0ImWkC/lnlHTWKOlyDXTYQukm3OYv1Ywf2ZQqWHQ
-SclheOi6LgbVQjjSsLiB0a2bxud6LHgObxe1mroT6lYdbGOusE8/7JYBGtHsmjc4JMLMxUmOe9T7
-um5brnUgGeqALXnPet8o20nJux+XB/OMJZC4wswBiknnLhlUTWuQBQi61IVDbzid1GlOMlk//04j
-bDbgHJSBWUuHLBU+fD6uqYAA3a+CjCs2s96aruygJ+YGfPKmu8t5bRabXkzVgGo9ycUod6krLx8S
-YHdXRP1xE4yS/vVyh04cJOtdmxNilNpSyrNkt2UVt/JkaE26Ua4pzx7MLG8XTiMFrm7uVaLF/TFl
-bwbcy1CU8WvUt5ZyZYmQQj2ZOigSUCXR8p6ZIFTYHds7eeuYgs+4XI2aGFMDLkxKIiefumSq/Zg7
-bdT/Yuo8thvXlSj6RViLAUxTkpKcc+wJl+12M2eQBPj1b+uO3qwHbVtiKFQ4dfYMKcQv272BIR9O
-M4glK2wxE01sRnfZCDXWslv7eW9dU3yVNVoMeQnheBBvRdDRoXjPTF111UUAhVr87dpKZGEiSivD
-CbKs1w5srLXlVuYC+uzW0UrVyri3OqmomtyXVQ+RALZTFNv5/xf76H6OQdGqfza2ptv77uy+eze1
-wdT+HWuplsRZTGkfKlg+YxVXtqraKxiH5ZUVVH7FcKxazYcuOsWAvFvyqQqOZ0DykhiQOVsUM2GD
-a2I1Z6eEyi2a8I32DqAbnz1K6y8QHRm91th7YAjesxJldwlXpg3StYH81vHhe51dDVPVKrwtl257
-to3wWZXsYRVlacuQvE4qo6LpVUt3qu6n3hPuRRNFGQ1CvkvvfY6NWdw9dbESDbyLadzz3T2otQJL
-kTQA2GRwMRWz2E6qRWoV+024OkHKZkpZgu76j6pozJCBZysy1zz1y253f5uh853y9B/JcAREQJRt
-pn4Qd+hl++xOldGO2HmxoVQV3gqFvPVRlnzYS26x0OruXbc/D/6ApjXKsY046NkaVbIEXlM9zmcP
-mjYVLk6j715mgvnPsEwN2GJMDLvlee4rmq7x2lXNVOC6n0X2ReE6Sj/55dkL+TPK92VkXllZAOni
-xpmW/d3XQZO/ll64juKIe8C2Npfg/pbiMSiWYV1jVmZC+bjBYGm2WDX5ZqrkPJUlx4aUrvv3KWBb
-n7qrGyL1tht3yzRMM28Xj+Hs5s2P5MR2ctDKIsxBNm5T5YRM/C1vee79wvJ+HYx185qm9AzGJiny
-NaiKpIRFbcPRWUb8v9M86uFAxYoXOXqpMtOiWV8GP9xPBgfo7jPEYLqqccAtQCvil7IE2x9i5epY
-sVpkvT+MS4gM8gSdz8ABdapu8rB8zpW7AGALdyf7nafO8XiUM39mbUEYY1sf0Gv3mX11qfdpTfJK
-jOZzKKLdvtoc8HKvspuW/NmNsEB+YbNVN6kXZWJLWIvYgzi0VNalaw9T77bFzollf5rx+1sjUI+o
-tF98/vi0jcGNMZUv31QVQs8Ks54IlCC7m0GEzVlv5+JiNA2T1xgYmjGfnWx5UY+tZbBoiOF77UhE
-OmB2k3XtTk47RLBt8OPcTl0hvKBJrCIEiBLvDoQf53qBerxHib22y/7XKwRTrBTqDyqg2Abt2csj
-EqEuZFvOFrux48rau+0ThaWoclys+R43jpMLVKp4/CBLjk0f5vWXN056KJMgt3bryS8GjBPY2jEZ
-nMgdmBTyCgKst/y0lamKArZOHk1LctZDzPNVYDejVHf1GQQ4XU6qKYblNGnWgudkpSgI/HT4D6fe
-uZXfLvgWlUVXXCqidYVG+v8h6FKIoU7KZQsH53J3W8LXK0R6syxPXe2OdXSYuyjY7Ncp66l9yO7A
-2lbnmaQIbjXsK30dIhqancMAjXKLt8gs9mGeDZZAaQSVe3poq9GMFyNeHiVAg1b1dRVHnrNFf8PW
-YeZxVJXx/6mh3IJr2wJU+AeU39y/QBiyRlR/iJUQHp59r/86LjE5dlayhWTTJZhry8e18MVQIC9v
-luqn5gR03neu5xAvqoTwZX0HqsXcqFzMcDlle3PavAy66riNuR37OaxIP3OK+4jNg6PTRPU9c7WB
-eU8bRLP3EpZeWx8gY0zaiRl698W9P0Apg5nijlJ8OC697x++U+l+KL+aaQuwjBSd+FiMHOyiXkyC
-DqFxT8itreZ6Nl3mpT5u2DKpq8gZP9zFCQWW4C3+zjfCw+X8yanLZryxOYGzh1GWcOmId8PHLm1T
-vOUg0rOfYC/D9rGqMTF/VFAyow+0QGN/nHtoVGlhD6s5kavCvVo17tLygIF99ttHsz09IFst26PO
-Sx1988ieybSZjdzlcfKdrvsbZbLyWSqcuA6Hfl8n97eUK93pWPSTw1PNM2LpR89tGU+Jzij/uTP7
-uF9B2Zas9UudNfVblofK6i7kNvtzcLS8Kdf2haZQyCD8bWE1/VtDs1m/ay1HyJ+FsuUCek7B5Pp2
-Jg1Aiu15iIV7yobGOjcJLkh5roGlF7g6Yw9dnFWpU+GOek58043db7C0wNDiPhxnNmWL3FHR1ygr
-a3gDdNiWHEo9D3oRowyD/pnUvQH/Fy/20qqOQBrq6RSGa8P+OYKv8bYU3ubGCGWwCwp7TTxHejAv
-ny26UOCXvi4XQqONj36NDgSNpY3XduzpvkRWhGm/xO0+Z3D6lm2i/Zt3QxUyzWzWGnDNYMNKZWk8
-cXkW3SSA3N7+zMsePiHw4sSOWqvQj3636Yuc9yu7qQu36ACLF+NHaDP4jWd3rT9nRD1Pjemrv37p
-qfYCeqb7OGyb/8jSaa7+OxY+89CeNHuOs3/VbWOxPJMphNBzCi9qT+OOscUJM5NMHawgkzpx+2jy
-LnZ4oYxgw7l96+2Am2V2cTlNxrJTMC6FFRfQy5cEIR5WBN7YNNWx8r3shuoGKPPQNvtXKTi/Lwfl
-wADDMn1Dgg0x6zCNdn30oQPLo7S6/ETxgWPIYOrBQtQGFz0d2q63wPXWfToxuVtOG8fbp4sWswF/
-xhmTePXKTSlNgyvQiqpVJWbalvpyLtfAxHIN0Y7hFBfluAfpbU1LI2Z9lWN5YeKq6oKLup2Uxq5m
-C+3UEhxDsX3+U8nSOzWaD3vJZDLZvS9SVzvaRmSXF0+EO+cduF23xo6J5leJzf0rkOXsX8Fk59Ge
-sD7highhHYuyRwpkBRPwd/bCIzztw5lkFdOYwb8ZMqBtj32/d/PJkXM1XOqeHZ3j4ipHv9ZsmY+p
-HANRxpU3b4yBeh5Nf45aechMCC204mfuz/cBaI+p+zVRWeY4CTlKH6RyJxdBl2iw6OcjtsDrusX5
-ijavvc7dHmIuymYwxWzlKPdUin1ko3wvqz89t6ZMyq0RR5etb49P2yEp8ryhQ/bX1k5CsQPSWDb8
-EyE+OXheh10Ru5Wdv011VWUXmN1vThyQqSDBqMKoTyK7Ge7rxg+LY+BU+NlE8+Kro9vPFiP9aK+j
-uN/n3iTFirI3Fp4Nk4IJteUd9qUdnrZgbr3nts4rO9l8Uam41QFwsroYtb71gnxgzTp3ozzp8i2w
-U3zjveFu3C3nogel6132bqMzfkhIsstgsSFfsRkEpjhQBLMZEGxz7NpV3DtIq/pvu69NLEJiZjz6
-ePmnRT7ya906iOrDGq1kfH5QejlK8S64hnUbyFPYEMMXKOFd/Vvvrt5+If7MH20zcJ5URVm6aTdH
-0XRUe27xXewZYLNkzSPuNuQeV5mevDfHM3N41WXsASQFJNWnPchhRQwo76/1mpFcrttGkrfuQ+Sk
-kIBznWA6FWG5WOjywYyO82eWUXFTNn0Lnc5yc3CnYVSVCTgBAiPoLvk6OZb5A/0ji2JQlqX95CwK
-uwIPiUP7UU8gPcu0nsGe3vFagplED8/JBzjDEg8Fee3LDiBjSK3eKa9724NC2+P6vcdz3YOvzPMi
-dC+4VXCG96XYZh7VLnpaWTepAD2XsF9zZtTFRQno0z/WSHWA+bLGFBwzldEO3kXWFnHRa/tDbuIs
-iGKbszrShJwPkbuiBs10kZ12Z7XwIPLyvD0J8unhvYC0HQ9hUJfJnC/ELiYbQY3ZPyuS7QWghv6B
-3pvTpKCuVvtyDJTNhpigZuH98kuxnjA319VFJ8NpuCZXoWqruS0V1n4Rv8eqFm9OZy1ZhWeBpXhn
-rN/+Ovae/y2GfvuL9UvxBTyxuek8tHlAC8TwsFdL/dJlotGpxQP1ATvQmk9W7XYvUy0sYmZr7+4x
-0H5DUmBlkUg9Egr35Nvari/dpp1fmLN7gDeo96nedtW5TxM7dubABtKQFlnlcxYITq0EGS/eWFkj
-w5JksKNAXRvXf2AqjzHFzjJTdESjb01HEUyBfoVkHtaXStakw2q1gsPerJxD8Vx2rjoMeNWVsS9E
-8VnlbM7HiNas9qVa4Byk6xkgdyIU97eIKDJWfF3I1HGwRD7ojAqfAIQU0T9rcvQ/S4no3yw9Ktu1
-ygBIL9biwVcLZ84zBHZNSR3SOofMozxH93I2i9R2O35t25kKmRduW8czHIwfhiXUQAqQJSmymF5B
-ZPffbWeEe+WynX6yLT8sE9rZ04gPB13gI5sr9ZBUXob2pChG+23ts5XXpd/zP343bHf+LrOvSBnx
-uLjO8hiJaKtPAxkP8knlsVUctLjwHMqqGkEMt3N5iGwdZjGAaXO7jY22jo2E4xpgR1rHnjDqp3Lx
-SMDlpXN9AC9OcGqsabVo3OT712zJlVX5Adz8xVrP7vcG3DJgp8f0XwPBYz8EkFpuncqx/jlLu92t
-gj740R1n/wuycvVSeDhksNLYzFeLD/ab13Yhvhs0PisgaS8w6biV7T89WuK7m3XlEN+MeS57hSXL
-3O9NcV+Vo4Tw1q7dr93Mk0k2wCv1wQjZNCg3m+Ua1BEgEbcz47/cl9kf4w7543/UE78p1GehvLCN
-V67aTzCq6Vq3o02u33HPY/xXtJ00tSAPBNJxXtuVM7IFSxow4tSbyx1sIgq5SteKqsoU5zIh9MoH
-24F+Bvqm9OjIw5HXx3U2K4j5sfSCE4w1+9NXtefjTTLDv5k8XneHtcuARhU1fKpZawd8HmioaRUI
-xZBpkzDwTF3NCketdX+1s3csj5tDYX9wRsXYU0mlTkHFtY4j1SqI5Iuz5PEyBzxk2SrlfTaGxRvK
-i+Zlcxb6QBR+yxy7QzRacYYDgx+3fqif6ib3ftc+am63uZzzK10IVx6ikCTmOOk2VEm9nCcqVmbn
-l/YYNOqodRS9cKb3UGu9sruu2PBWl1Pf+H/61RW3uhK7d7TDonjPSViXqyCfoqciyoxm97Fmx2B2
-tZclphjHQ2jroL4YbdlVSS4H+TccXY0IqMuaa7lP+5vclkElkzf7HXZHRmyx4c6cWkaR23Fdi/0j
-y7XRN0QLrz1GTu0cWhmqLRmRTJDODjnFXcaX5+qYyHxQdLsvXu3mz/XEom9cqtFz4lyQA6RObax/
-DTCma9b9ziGc7pV/nNZyCBK2aNRDoAzEFG6hzQXYNz/ZWcu6x9PN1dDUd7+L11D44yEnbfcS0Ujr
-0ls3vmbEEgQ+kO0WBDHvs/xhwpe9WoOc3yVy+j+MCcx13iyVTlTRRO/htvZ/6QQ2D9MytN+Vt7uX
-kHn0lODoNXmJZkqEWwaaf3RwWwQ0qQOByd9dDE+UyNR2yCyA6bEts5ErS8ygD+J481ODuQfFvgPA
-kegZjA8rVeoWY+Jb2deDEd6f1czebeBX01dT1vLdhTYMZkk26ruecZ2KdUP/M5nb3m8Je1UDSXaZ
-wy8mzCTJSxHlN7s36ik2XMRbQB5WyWqVXm6GJSdJsezFTk0WND1rXaPwY0Pd8SkA2n6GpS/53M7A
-Sog/2v1JDlVWx2adNCUQa6UDnbOyH09ZK7bbLDxDQXxGsSCSCycASw5rdzmQNRnou/NefSDTzx6c
-xd/WuKU+AsKVn7O2Ua79BQDxFR/cwQ/gGrks7F+Fk5m+nNXIF3+PJLFb7N1j36nw3YPdbi4hcdUv
-g6r6H4XE+hb7iN4cS7+MYNvjgvFhaRqpscMJzPJ/OdpPoIg4ArIC20xCrB886s4K3hd3oJRDRSzf
-inXl6Nh6w9aPP9W6uVJW5V43M0Uyua/bL6nb2eKjDHts6agZMgrSUGLkNJO13LR7p+Z4kM24xrzi
-/rcQW5MfinHD+KiiIk6avK7vO5d6gj4QM+VTM2bVzbRjlHDKRGRfhnMd/Oat7K7O9DidNisphg3R
-6IXOcjCmyJCzLdGhCIs09AYE9A0NMawy2Zu/LRk2/WyNivyjUr1z9PyVjL5TFVA3Z5rmT2vcogcf
-cR9a+w5Lkrj22mZKIrwfrxll9l7M4K18zttaDcmgOqfBkHUl9woxjXJj5ebt8xKJYEvabXD3RElb
-30j43BFHoSqfQlx4g7gdVBkc3XCxj9zjYSdzY9W5dWbxCQeVdXeW3p059RpvvmnYjtsuaqZEL4HY
-puIK10gOx4K0uoiJReIiKiy9nqx8CIJ08kK21L2cICNpll1ldrPfz6oZo8Oui/radGbyKMA848YR
-ALr7cvM51bogZ4zZLFN3UQYMig47vOYPLxv2rzHS1phyD+ubRSvHTqNt5uFu6qx9V6IevqO2kXni
-k6H8MGQwt1WwqSKlZu7ulDaiebCwYlA5LGuawKnuXQWVJ1vK6dN2TUvaUS5yuZOZk/tp2IWj+a53
-Yc1xVyveAhEq7oJFqk5lOLu1ezoLAFhxLqfoxwec1h3Gad63zy1b7OeQweGFWS1Q3O2+Lh/QlKOf
-dumb4hjaXfeGcbp8X3pRTcnmivbTKjl1Y4uK+3UXVYTpkh/1R3sC5xdH/rI1BzEvUXjQSzaUFxO9
-7jl2OmnvN3kTkbPslMXPvpxpL9rawRnApYHdpOVQQ9jCqrTXhzCs+po2h9s+1xrjBKzT907Eeir0
-p5IVaagT2KC02oYPk/bryJ/W4RjMqbUbfUvyPFLLmsaMoMnJdg9s57ctPbVh/BJm9cP8p9nPLQVj
-jeNjWIkwPDghipNk20azJXvpdXSmgkVZiTB67zlUhmk4c+78f44JLGx/uQ+lc+FF2/BnzBZcTrNg
-Gd2EHjNljQnchU6P8PvhapaOaLDodF26Qxjr0SWehqJNun33gJJt9c1qia1LtdoohfIdh9mk0BMm
-8sWkBvB2DjkGCpgcGXA7tOCQK5b7nqppcSz++9rf2W5F3maq3WqPO11fmfhd6T/CqEZVos0y0HGr
-2+AOSzo3iNXgL39ZiNdLTDPEGlKf2zyk7SQKGlZDlD+sBmOcmEZJbZ1WVLtb6mncOROvBV/Po+PI
-2ybL5ieGKi21vek7+xy+m69Sy4UwjVUTP16STccis9cXB+77/dBqpU/I9auHucttJ/XwiHhUEeaN
-+HkrHN87f3MYV9nFQiZgzY4tjktEy+itLaocjUeVr3bS912539ayplTzOAbbOFQLgMJhFxh3imbf
-mutyCu2LaRjUGg/M/18KniqFsqYJodCxpZ0TjEteqBKtTB5rELIUor6Xn5bcDfcUY+KBUWZWKeCK
-mI5nib9k+kt2jbJOBVXqJT1V974PNv9f4UaQLNsN9h/UQaY4sdc0u3Ws97ze0ylz1pfNE62Ibbs0
-M94YsgkYwpRBmwztgODb4I2lQ0QX7r7R5oUpUN9t+Kd5CXPabSTb38JbhkTTawbM12LgTysEL9tt
-p+tnKwYB5TbuIjHZjH7ULjmbGls236Iod5qSMqpfMib0w6ENRGQSQX3wEOmKzIntIqh8ljXv9JlN
-U19mrsNer9KMZWIPZ4YuDchcp2RhxtdyJ/eeAkBLb0qANMrnaIL8F9ssXT4x8rFpYYz2QiK0LHWs
-6pCZlAnU8LDA9atS/Ljry7YuyDHWXKxjum7F+u1kxmrI97bhpqrbxr50VCZepl26j2h/9zb2VBbR
-YbW6aTq0TPtu996jAVbknnr9b8gQR2s0/DrLpO9Fl6k3kfVjc4imsfr13JrjdFj1/r0ZMd27pit+
-xx4LD4oDN7sfgC8SgrLeeVsbiV/vSvfpInB65ydbCHl8VZ4x5qL7ki66m/7ATKYxv+8rjltLWDSs
-JGPlgl9b5R045+Q9E7T5iVJ1HxI398wHImnxp2MywUEWFXqOm8UW1S1upcyTcjWuz4MJC4Pefwd7
-MDjB9DtZeLaQrfu/AhNHK6EYDe8cZ6vo9E56fhW6JbMu1GLdNtU50uiiyB47jk+VbMperxmOsH0L
-wT0QcVbOtn+rvV36jGba5lHbhnyXP9ndO1r42BqunHdhsBKspsC3nsawq8brOQsc6KFOu3ppHjS0
-KbHQDp2LZZRYZXk4rHipsjvzjyt0DlakmnUy0E59s7eCZmmNP94We5K2R441iXfBIWjT124zBuHO
-3vaP9dlp4Bh1jrkh7Lkd5QfpfeyHov+XiVbKpIPESim8uv1TpaN5S5iXl/Mxkh2mL44u7ceJFMQC
-IlsQUEj/J8JBWDB8Yn1kYTNeWxNJdq5xf8/aYY1rYh3rSWsZmEvJRuBv6FWVjFt7kW3CQ2I+1qUS
-L7ldTWVszDR9dXVGt3YFJFfHi16HBx9r0p+Jk+eeTrP9gF9v7zyMaOEzWnZtDXrjPCHWVWdP7xmd
-P+tUuWZ5aC17bq8zX+17PPJ6+UeWEZn/VeJseHz2Gj6080wu74ZlVKLmmUWZrKtbfHc1vVmWKCcK
-WjHVNWOioS4eHLZhl8Ok1umQZzMjfo2Uj+trHJKKqbH8x9qu65FLnZMr9KhBv62awfShmwnFiak0
-T2zYW8E/5VrmSZplna+H0OfIMezc2EmwevqLPnggE8z75cnH9ra4LKXJaTwEC36Yw9C7pH99Tt8O
-GxonS2jr7h+VXu1PUzehHa9ODWlykP2vH2w0njF5xmy1YgT8vjTBGsQgcJnhe3kwXraz4De30zqS
-0sqg8ZKxDr1/zD08ph2oCM7D4padq07OlFmYxls/9E5oi3cEtTWpGR86N2ZqrddGyNE5CHiFZbKV
-TPnpI2cM44OC/m+Kl1z/VG+u+dYouT75QhBaKDaa7hCwHeInclxnddrwTr+i4WNtcc8j9Ey21DVp
-7mbCSvpwF+7J2Mr9tLyufEOlWvxZ6M1+YuV5BnLKtX0bq9L7nfa+0DFJj0XPn9nc99CP8lZH4bhN
-B2+N7B8Y98MeO1mFCQAkCllfWnUD9hN0l3flFF02pQo1CA8yi53/eB/1SPdwZE5cro0hxUN5Mx78
-WhTDYZ5KeT3jNsG4SXfyN3NbOgF2H2ZpMW3+dgzKHTVhuXiWoGLoxZzf5l7V8p2ZDIgElLBljv2y
-uDCCuXdXnd1bzJJZyPyth009Dt1OUiuyOfMSQ7vaPXidp6tksBrXut6zZspijIm8T+FoJkJdHjrq
-WFHAPgW1sGHDekKYS0iwzgtyWJwBLLsgNwh6PFx6ZdOdyc95QJxn2XDfdO7QENy37llMjMc4paF9
-QDQegkdr9tf8uAnV/gkGsqOk7GhWx43IPc4zpxle1Ki9v/gP05/p6qUP4kl1IBY+JE6G9q1rjLPf
-1JMsRezWGd2mNfeCezxahzoNOYf3tFDhSFAS3sJ63Yo7xDEH3tKcsmYMqmuH8EHnuRiVfYBTWb5U
-dW5o93ibKA89uiRJO8+hrTwof08cs6Aetuu9fmOvy2/jFj+LnB+f9tTvnF3FHJHMOBZOmt8ZA10J
-cjayr/ytzWo8LCP/Cvqt0DT0N/1ccCnfhn1nyVhXUdknoib2JWvhFNgNd/04HGkJ5Q9zcfbnaDbf
-fhNWsbzXcuX165YMAYppBz2nhQxnmeSQf5kcZqFzOVe8f1/oBAiQMugYdDkuwbYmzeLl7JxpiO2S
-FgPmJogj8U2cKWJLf1RwgVrbPTUK3zdOgyA7SE0REUscU4/dqkR145kt8+NQWxpu+IozUdJ0NFQv
-QuN7v4M3Fu8dIaXgIgQLxFpSojREAyWf9rpZboy0+vKG7My/2QYr6E7e2q1l4nkAqQ9kDnRrbHu1
-AVSv0JATsec8PIXn9Z+rWfgio1vmj1CBm3dNTbAmRvQYHOzhkL3WYT4Ytin3ABkQR0d1YNQ7XQ8D
-acqxpadeJ81gpoX1WXe6s5et/xGN8Mpr7fjeBdvXy4+/Nt7BcoplvKN1z8xLsRRpCEqj/y9a2/Kv
-Ybb629B9fZODj3QiG3D0Sdw6J3tTI6l5Wq6DvFfIPVCIMYPFR2k1mpHDKuvEOFiQY7q5TV9B1RME
-l4JuOSeJCqakqsuZW7EFPPoqhJkcd8Us3yKkR19FY+s3awzCJW6dTn91GETbaVWs4pF8YkehMvLh
-g7B9lXKZ3mrdW1FMrLarxLjoTlCOyYmkxeRDieWR3+3Ubvus4hIDGFoNuMfT5hqCKYztRcsvz1by
-1bWC5VEKClSY3ev841h5Rz5CETSkGWPNy5YvSEqXLe51SUrqJ025zj2aFTyrMft0MaZdB0QWvPrt
-cOIsLL4DuXkKa2mzu/g8jaWfSpQwZZpxAe0EWW7Au5rxHCSl45bIlvEMY34+INiKzzGZbVlusIwn
-kFI3XUi7k4lcPbxhMNX8rfUKVLwiW77vGjLPg1nzgbEW4902jSrI2kddMdYetd+OiQlqyTfL2BI9
-7BkHDLPxUP8Zaqv+oiBgj7tsxf7i2MZia0WM24vMTfXkmNWmaWRvTOE4PvohQa/BZLoJVX+/qmy8
-a6Xjvk4dlf4jbSdXJiPKqz+GzbrPvDft8+zXpNgowCs0YWXmvhWe6dnAN6V7JxhzFxd9l49fxdqf
-FYjUIHW8YeOmTovV1SJel4jzQpilYpzEMPHF9xG1VAU2l/E2dup3ZeHij08JmpNvuLyfLkkC2QQz
-rujQ+1upknHe81db2YiJBiY6Z6JGwbjC6zeuc9liPR0vi2M/anfTjy1gsoHWpay+UNRRhBi1/tUo
-i9u4mM9P8TzLsr/Yh7r76BkI80BHjS4TQWPAipkdFFFM04lW1O7XxW2hQGcnk3QmzuGNHzqOhVwK
-0B4FzXEI2aa5kG2m2KLItXrM5wyJRXUW2sdSboVBj7aID2rz5t71aHVz5StxP0wqf2CdBvPczO7k
-pWMresDTWaLEC+d5GETWwOnTgKbaG03F4dPKN8c7BFZDX3adSvsOzWTnJ+yV0LiiXvOZSld2YBLi
-LOINUq/u0SzgYVIxutzwQjFKTnkF2PLIUex9iMIddOoWxrrYBON3Yniuv8LBy148shiuky+Wb9vd
-mfLj4FmCmLE9Q6EutuLNzkovu8KSdbvvRhxjjrwKBDakeZyVvRfYHhPYdczJ3N2JflM7+BwVpp9u
-YKOvMg5g1tepasCBx8I32T37FuvT6oTqe5VKThc2niHXXcMonsytzxhLSu+LPt5G+Aum/KJ32bCn
-F1v2J2sbUfZoKYZrvuqMtCFwiiIxeI39ljw//AX824+z1fr/Blk0/kFMa/d1Dg9Uacw88PEmk7gM
-Mt1ia8i89HMMN5t9h8LNO04oEdKeoUdx10wsFyCP8bO7PWig+e004tAiFHu/plHW5wMpkSyvdq+j
-gz1k6NRpYKD+OI7C1Hd11HN4tmO7OTw+k3tVe8yc8Lyx+oYayq+fLKWrn63fgz8FenAEmYVrvc/7
-SFHkNbjuSF2gtskda2+TfLEy0nJ/dd/PnPYbpPg/OpubMXG7gWwvKMnPg/1/nJ3ZctxIlqZfJS3v
-UYN9GeuqCwCxMMSdFCXqBkZJTOz7jqefD8zqHgYYExiWVVubZamUHu5wP378nH8xZRQhs0TcR3IB
-nmmYaHISsKMy2EQmKbvdCbxE7Yh2HWAjq5cvAOUE5galO3yZ9ExQXjJZFYhWCtdwlHXiPqhLjgSF
-f+u2lgvltqACnbler/TPpcytyeZT+59yhtWQHcWR/qWrwX7ZmZWHT/0I4oWaVK9dwcHu2eGAK4NN
-C7CvQhuqUHnNGzFdDL2SxAMfrgKrEQ/CY2wNPkC2GYCYa7gN7bqyCwm4XvZcaWznXqnz60wMB2Uf
-JYW4zYShUXcE1zJ2jCZvAhXUBCVBrICoJyTdIc7of0pzJxFMnWkbaI52+8HSUvoNaajXRCCZYi8m
-KRAd0Mmnvd0pMeeJj+BV4JgaTafx0ZlXcR/iZlYrlMevIJVRPciGWDfwlanA51KWoFrBvRE0m64w
-EmWLSxAl7ahVqu95JPevfcYdhCIXHWc3asbywbAkIbkE6Bt+iYgWqWP086uKHjM/ArhM6NsGudd3
-dEiFL7AWaWMbUx+9qIHav9LjY9QqrmPLpW6VmDeVmlIQxt1w4j2A/i1d18zUqm/w4ArtS6Dl4VdA
-B01DwtUVLZCZUAAzMkBliZ2qAIG19ymp1ZeI+NRXHUDz1jEpd0173BGLMLih1zrIjyAspp8kXh14
-+MFQvfqp8WOoIJsKCS7jQqCV/4LKd/998JWh3dGTN3PX4lUMxqIVUIfkfU1x2zcm4dlCEg3ZLlO3
-roM2tgLQYIFJcp3nDzVtfIBVYij+FIBHZO4Uxpq3ARxiAY3iaZq6ag1GiE73fADUdkSsUM7MrnRM
-7hSdDNsAaUanz3ps8tK8m1qlF2lWTkzTE4pyB9K2v5q6eqL8NhEZXBoj7b0PaLqlPyTFJTVNM34K
-kUdQ3DbPK1R/QAGSZMbpSK241gg5lRTz6DcBhkhAxpqmAZciBDEtBoFtQ/8WGce4mAxvX1JbDhEp
-IsF1clGmZUgLLtO3yI4VaDMhpWZuqdzH3E2KTGtOBUaOZlw18VzOqk6maaUI/gPJY99tAhRUD4jJ
-SFRYxEwQeBzXbN9+EFFVKKN09Ox4JLzTR6Tgc4EqOI9pACcG2K4pkl60WI4RtsyQ0URttYsHN1U6
-9XcwZcRAIcSJxhaUlBqtFYEBtluC9X2VlMlXgIlKseFVPzx1fpAGFwKJN72NsFDuDF9GYWuQCnZk
-o2eNRNdQkq56kpuXMurMB+SCLcBHOBV5m8SaoHROitxcV2Yo/why2dDcKBrEi0nz8+KmsvLqrh8z
-TQS7YYJgz+fUPvWUuHJUsQUVRkYuFOBz9PpbFiS8cyNkQQnygDg9l8q4ekc4oIcExwxIrpIlggD4
-TWhvCVNT5yhRDMaxiFA06su3e0BtrM7Oxby5IjTSJwZH5H2HiZHsR5RVBxfAA+1BYD7l8wg/rnZL
-AG/lAc8U8S9/yExlJwrU+BzKBBJXiajjHklwEcyN1Cs8PxEeb36nvlz3JNSx/4TGbnc3BlXHDVPo
-/kvZjONfvgHMbhtXVvzT4pKuNjoHi05EGZklEjSRAS50JOV02PE0u9VA4NzAYiDx4+kd/6JGn73k
-hRH2toQ0/BNdXGo0fd2MV3neWy9ov4DmoWOslXQBpgjIsiKYv5MonX6GvK2YlZSAaWtTo1OdKIy0
-Zm7naZ0jhkbyI0TbFdMeacomV6VSR9cznDkddWcBFs3yKQV8Iop8fJ+23aHuR7mxRUPuNc6BKgSg
-jCK/2piFBeyauwU7JdNXJ9+hIVte4zomjq4h6uKl5meYDYRSn+Q78sf4W5kTlUnigB61ckHoB/CY
-/gJuGt3Ca23AGYZyKmxAhHu3DfEpcEjzJZ5pYd4+yGDFvxb0bh41nT6Cyu14meaJch8liprdlVHf
-IrVjhd24l81ueKiDukYGdaoUZICKpPF2Y65E922h1FSe+hHSyihOVBvJXRBNnWQzNje8kgR9E6o5
-z8WhLvXKlRtOzcZvwoH4aPVVdpGpg9xCx+1V06K2qhEfNKXhjwPoPL+KcCoEB621PNh4kTRGP80c
-4MQOiYzOu+p44wDowqX+fgA396ryNOBTS7OYS+ZTa/fUADjZCAIGeEMjJj/7avAePTL934hCzWXW
-cehVAgE54AYqjvIMHwSkRwo96LkMBy7yqpGsXZn0MV1WGELpfgDfec9bpcDUOJJr4PMa5KBemkrJ
-qROYiHYsy0kCwoQiiet50GTIIw3jlto02aYGK+BLVAG/c0PsJU2aBy3XE+Aa5Ukey/DnYILsdZLE
-IMuF/VeVTima3m0WqeCMyPxJcmm7BvE2V1L9QUhlgDwtoiG3tSA1k1OaXtvb0N9AMxWGmD/GRjj+
-MFtdetBpaIkbyZtEwQ0si+YEvlB+6MRVSmqaCEp2J5mNeY9zY/4sCrUGYCnPfdkhHlI+xBkuu0Q8
-WsjgNVfKC3ryAD6B46YXFcSrbiOh+944/B7x0YPzfJimPgcjQgH1dx2H/rNMNQ1EbTmkIZ1Ytpgt
-K6kwghTsZtwlADfAAUDgv3nZGKguiKSJNrxhFjsQ9vxNBWxdzr1H943kGEi+3SropG38qjGum0gT
-BkJ1ImnU/qLoe1XE4aPlxdYtbUMqLr3nTcJc4Bpy29QFqC1DqJLuj0S2F5IGnhoyKEu7ySE72BCr
-vJ96QKliW1tlpLojWAgLnFczHtRJT1NEYOcbJhLLJNyoXUBZNgHRoWyk1DRu5nenRlBpp4s6r/3K
-8dqO2h76TfJl3U3qVz8mitkIXIa4D/Es2QIyJJ1BvLn6q4fwdxmWaSO7XSXSLw9NWAWsNBvS0ZrS
-T+xuGoXvEBD5xsOIJLoZTtKjMhilRyEXvhClMVI0HHRyGeJNnFl3TexNms1jPSBp8CSJAyHKwtc+
-VKavXti1EoDwuc6MGFz7oka1UjpTTx3GmXCg8GZdwZGGGzWj23QsfAH4LM9qe1QM6Qq6WHVtWj6A
-Y0NKyex91WgwirKKfiDS056X65FW7zTEvbcFKKr6+0SqrTshCwJU5C069l+UrqebQTu8dj3Cfg3F
-grv+Qo5US7DrBh/lJqsE3qINbfcNj9UsgoYY5fmdPErAAsCM1ZBoPJF+Fxy5dlMOwVi4lThIqmNO
-UKCdQWzbl07phX7Tt5UUba3AijlTgaWTaQFAnYDP+X7kSpQEw9+DT2Fm006C1DlpDgGexGyMgVxY
-pRwe0B+z0qu+C81bLYyT0lW6KYGmlYOxu4HyQ1O7hafAYpRK+luKM6nejsHkDe44ULLa+gGJsSux
-ipU7EcTJLSK6VCxsUggSVSHZuw9Lg1yixPpCAOjZkYSMnNXXJBswUw/hfdznzdho7mwDcIUhQvMd
-zKxKEzKv9atSo+/sKNNYAC02iwgtRtWTQN4SuWyBRsq15ElAXgYqqSDxemDZbgJ/6HfuFePXPJGi
-GxVUujgDBqkdU401eIjmxV+m1/H4o65LrZDqIRlXpNGwaYxE/EHG1zcOT5SMFLSrzBupUEpp56nm
-9MMXevEKimknfoFMpvzuNUmZizMJ8Ey8hPwLCsPBRH9UzG4gFygSGH6lDWizY3DgAALiRBlDJN4F
-mB7ETq6KfLBOFLXHtq5oK5etTns3FmvrYhT8pt/1fO+HiRt82KtUMy4iqid3jdJRQ0LjrL0EEMEt
-mYM+uSY74LpIxDrv7KmmiLEzw7KigCXDJnigJpmQguSdDF4qi807Pc0Bw3Ld+DdlApLY7ljlbyDU
-u5v5oQcUR0zggwlCXt/Ck/R+xQUVZKdTBl4Y6mAmwESwVHm2gpHD7BfBaIDPSihXpBHCuhvU8NRf
-CcU2lGHlIngM1Kzh5Sta5TM6cHpCkS1LfvlSWYGC8GJKSrC5kwJMelY8SjkIAIIs+AtVQ/PYDmsM
-yV1O8fjDGvWpI49XwIL0lGo1UDikjeCk1eReDeEyOHSh9J+aWRl33EG1ss09nz43W7faiI1fkeJX
-hVI4c3Qet3JEcWcTDQ1lbM2cAEYGZnozY1BHNxjK4YrMJav1vU9He9wEqmSWSMuVwlXdcWvu4zxX
-LkxqIrJtIjDPEz4fCummhgz4u/LE6UYPzaSxe4AV7b6ZqL/dwj3z0DYVjJy1CVQt3+Di1RiXU6Mn
-xRPvAuFJsCiM0gYqRPD5ekSW2/SF9JxkkyqSA/I8+mX5USfYPL/AKHoSpKldUYIa/2bgGGrRcrEy
-jSChUBoDZ+tThAcAFI5fQZd2+G1YUJe2SgGXx87bER/a84zrWUvgvbgB5gFIfyLXICJyRhVyQe5O
-pFGzSoA/NIRV+YfQ5p7dxmW7M+J+uBWEBLFXwfP5dE3rJnEr7c4PvyR8z8Pj0wod30TGli7YMdca
-DmvVAFtJbahXPIcSoMztXgQlqMDuLG7oUVj2pKn+l2pIgAWfH3zpKoa5HKPLokjXUdFn/ZTj0fEJ
-0zVad5kde1y5m0ryOEgploCbmFdFCKyJKpoPM5v+eciLCo7oJs5Am5DEUPAu9eb7yi9acs+Xv2jB
-6Afw7JVVyufwc5U4TAvTjXxLdkiVnkpSYQIPvfAKNtomaXrNzSJz3GUZFQC594GGj5QcwJNYKyu1
-lAB4+1kYGM6qt5KiL62KyoEI3ao8ibPUp9wKd84H2JFQjYzrXM/d86uw1IaYR5sVPoxZ3RRMzELx
-q+jVDIt3kCDAgc2famgowOOgS5EWDtrwE5NfeUVR5NQ2NGgI6Nq8ByVtIX0BQLLO45o+PHRA+VYH
-ZkKaK4HFbcThAvSctSsyuNu5on/O/mG2N9RBGuvzDmR8abEDzRwGIvgX2n1eRt9sLv+GxddU5S64
-oBJEa/v80n6c6PF4i/016gLElKKAeJiJ/SyqOl6NjPsFPIYCVrxs3NIsy3tLS/zt+ZE/7mxGRnxG
-Q9TYwI9q/mXvJJ/qUculUGVn45AkHnywrVy8Rf5JrZa39cQkkG0DI4MizvEoDB0qVsmJVnqpOWgz
-9M1MpQNN+f7BAG+9sm8+ngvUtwkfdI9pCPI1j4czVcuzUoGdWjXcZg2lYYeK4zfINdL+/PJ9PBMq
-OhsGTuS0e9D3nZf33fJB5aqqIeRu8Eq5vCCDgYsFfTh0AHjCSq4o565Yrp8cUUGICQY81AR1MaLE
-C7tMW858EQj9L2+k0GU10VxJrIL4toILuKIzcmqHYJ1gQoQwkX9aqov3OEKodG6JxlXLe8Wairpw
-C6Pusv9gK2JBhCa8pKp8tcXMQsDkZBSs5VQaJVjnxgJzNJQro5xaP+TKJcBTuKCAiT/+Yr0BTjcO
-GKUBIaBDLbSmfRTI1WagxkoHn1rY+S1yajNaogV6gLSMaLY4YXpeaf5ozltE6qy7PkMYxBl83xA2
-bUJSsxJJliJF80mzFENkFVVUI5Y2JbnVJuTAMI8ryU9fQhp64ENjoCtTcWnW2WxHLDTd0/kpnghf
-XAyIkEnESozf5OM1nTxzUjRAojaaAjA6JcPb1SP1ViWNtmXimVQhFHWnKgAeV6Z74msiAku3GU0m
-gou6SFQ6OcwDs+Sk115rPssQryPuYqnbY1bWbn340ZvzUz1xGuaEDGsWReJKWoaWurcaMHYJvSzg
-oa7WK9q2FZQ1R/ITX9GQUXTTJVSKkH5eTAu5Gj/K5jPnybE0gHqP62in1LUkbqVmfktINZSoQGoj
-a2V+J0fmIoDChlkgeunHn9ID9z80uIHRLOnE77CtYuo7sRfejDhj/CS0g3XtYXJ6K4H0xClhOJHk
-Aq1r4G3z73oXSCsY7wYEU9Y1LoZDnYndRh8E4c6igLIS0E5MEfU/Bf8STsrsFH48VJmI8tRrKVOE
-+ucKFciyQavg3Yb0j+4KUMrfY8lakys+MUFrlobHPkijgCIuPil8aSSYO85IyLdzxQo0EswWb+eL
-kBQ+vUctIB8WJhu43iBZfjzBCM455SQm6KEH5FoNMKa+1Nbk3j6ehNlwQcRjVUPwTV8qAoqdiYlH
-iQ2MgH7ATdzHwPmCqFvJxE6MMkvj8R+CJwr6i+jZQldJM82iF20AES2kTAOsE+gru/7EKNgZIi2P
-hKIsIn52vGKDGHQD2TsYCzAj6U2Ftk7u5pXQBCvb/NRAJJSI2YvcceyE44FoKKl+RvnUnnpRBbYi
-Vw54xRXB4Y9B8c1RFLks3OHJfhazkclX+iGjxsl04wOxMxw3YQ38oxgg/W8gWBfj82e3HDaFeDWC
-UNdmZ5VF2AhBdVM+IGFWlIIXW2AW22IcBvf8KCcmZpiERVXkbtN55h2vXo8JnV/FJS9xq6RjmATG
-JV4y9dY02sApBn/Nm+f0eLwA8DElvVuK4ney2BoGZR0QCEJN+w83UZqrng/RJhKj/K4dKuXX+Sme
-2CBMERczLhkk/z+8vJHHh7TCQo5BFkLczWku5M30+f2OJA91MU2Zo6610Bm2ah2KO5wDu01E79Yc
-4DvVUTyumFd+TAuoRGncJAZXJYz4xdn19AC1qVk9U8HZDqA2oiyQZvoHEPvWzupNKLixP9DBq5t0
-d34ZT3w5si3kAjWsCiVKKcc7pQvFsCzxK7FzXfW/wwDSvsPMU+ttkqPaYesxiKLt+SE/Xiv4UrCU
-cyOHy3N5Zwe9nFk9Jtq2p2TTTgOU9SMRaEheCjKv81sPAq9k52VAOff8wCe2jImqp8kBNDl/S6lZ
-bC/JX5EbtLugEa4jTU3tuij6T6exTM9C9lKGb2UBJDte0bwYoPKb4L6sxMx20Bo9NN6EzOAoJEmq
-rWzQU1uHq5li4LyiYOaOR2sVHLGAqfIsNYdwh7QX0LokFFRH84zoCjnC8UqjZrdTyK0fP7+cBsuI
-2YjJ9tHmrfUuEzFCSte+rgH+B8t0KyH5tMmRVFx5op7aoIbMk5gUUuOlukiZkXwqcLjlU6V6bNg1
-eIUfyoCoJ/Dbcg9NpN6fn9XH9IO4zEsanVtePYTq41lNqKnkMARh96SBBjRS9WlJ6nRngXohlLWy
-JU/Ojpf+nIHw/83Fex91KqChqDSg4uLBI8AdmKZJnVtDso9TTazvJ9g/a9WwE4PORim8fVhR7vHF
-7TDJQJWLCa7NiGsbfSpoXCNY+BxtGz9N3U+vJ9AE5Ep5q3I1KIsAk/YxTFukdaBFNRCMnHAayuQ7
-/C+jHGCJj7289rJ780Y5rgnPtim8rkzWlRRi8QmH1Ap8nfaEbXH20k3YNeJVP6AiZoVNtvdM2kdS
-WNa7AHQkPoACLSrbHw2agik6eSv790TQsRA/Ia4rOgF+mWMGPehMHKJy8DWVv8FMFxifj1r8+VU+
-Ped3w8zb+t1hjPQm6UQPBxxvmgbdrtpZYAu7SFVzUsVqbtjNwoXY02MzE1Rri4R2NOLlJs48kbji
-VXVqf/HFUYmmrkR4WBzZHEE5z1CZsg9+3FFBrL4qVRkDCxP9Q1fzTjs/+VNLTAGcC4XrczZ2O567
-qk/4UyDNaBuaUqK9BovIGNN+ZVYnAgNpG+0QkzcR33Ke9bsVBh2sJkPLYwEZvfLZi3x6iaXsv2C+
-vZYPnJwQD69ZpRx8r7hYQBSSAQlIZB0VRuKuV4EKpFkTrGQdJ0eBWELgof5BED+eENwmr5CxTsUq
-2A/NLVJFauvy3IIFff77nFo5LHy4Xym+U4BY5PIVGb4JsZWBhEbcYoMXuUbeGXcFrOGH/2QoxJ+t
-ObvGB/x4Tmk91I0l8JGKoSluTK8J6HKaQHlBFPXR1/9gMByvKMORZ0vLpziSNgEK0WS9HU2Ybds2
-mF+CEne7Jkm354c69a3I07gFkWTmml/MCxyTqtcp5RvcItI75CzMa93szJVYNf9bloET2W5jLhFx
-Qyz1mLOk08dwYt9lNdhJuwUvekFw7J8CqlTbooXxc35ap3YGBT9giiCW6GMtrj+lgTie6rTP0NTK
-nGiCIldFGIWR3AcrH+vj3CiZqGwKLj7KGcu59apkJTW46plRXe0Cr7zLzeoAXE7fi1XYrUzsxGgm
-2stYKFjkEjRuj/dh3yoCjuO02LVe0A9+agmP2DtB35Ha6RaZPm8l6fy4P6iuS5jnkEfIsF0XZzkU
-dUD7Qg6xnT77cyFNI3U3ub8//7lOjoLTIceYegZ9z+NZCUKnDxMKTaDaUGFVO7+6Bsa55qt0Yu3m
-XIhmCy8ECs/zn78LtJTsYUiZYOuzbuxuJcmbYRMwfw9q2uvf5NJL/vr0tNiCVJpkFOvp8iympehJ
-FfoB7wJUxsjYU/l3mBmf9KmmusCjQCUsEdC5PJZ5pSwgOJFNHW+8XEFJt0Y/hgqzmjnAMSCpiXyz
-ldP88WsR1zUsOHlYkmIum4JlV8DC6SwwfUnZXhpT5F2Jba/0n47u0CpEA58ag+gum4vobqZgfgCB
-xKhjNPkmjdPXaYabVXrkfXZCuiLxDDdE3skyDuaLQ4XabyW0ImREqRzD5zQXik3cBJ+u0TMK71PS
-idkwgQkdbz/AoCC+DSSHq7hXSjvOTORw+rGPlauuLYDuRbUFkA6uPIcftctytVf24cPxC+awwbOc
-CELX8fgXJDx3ZtIvCKYqAS8TVkpwqYZa+tn7n+sEU2M2I0FRJzQeDyMiEd+qcy0PapjpWkr/mgE0
-3p8/W3OufXSlUPacLUPmfrg1/9/xIFWY1VVT6z9aeMJFLtzp4T4VjW0uyTauNyQ4EL/wbFjZkx9K
-DPOoEI6o7aqzaNDiG4InRLF30H8M7cEKzMu028i55yR65E7T9/MTXA5FAVmkA6ExOQOrC3URPEK0
-JSbgoTCD9cG/RvHEc9o+7b4IaK5vzNQDUMZt6p4fdLlD3galz09fUybFWNb3IpSHtD4fAhsNj/gO
-jkCymczRXBlleTv/PYpJzoudJ4nv4rzRiPaRBGZqAVSnHmCJMNdjUVJy4JavgSZODDYbhsBFo+st
-UtlbbJQ8x6pMmxGJgcdYfWHec6FxYw6N98mNz7yOhlpsfE33PGMqGQp+Yg+RIfV2CKx8NmWbR6H8
-gz8GxTUiySIutq0UgL5HoZEgo+16Osc03CZj+9mdQIcWJgRxipITRZLjZYN1MEWaDkHRC4uCV2wd
-oLKYfDby0v45GmVxinmQoAsw8HhEFNSz0c56FmPp+fxMPm4AyhHIs5pIu1BUMhZfZUiERvYn5NQw
-LtJ/SwOaDgkk3VlbwlizS3rbuu/DEgkGg1EioGVCk0laTKhHJ0EdO1pZdNJRkiFnFCBsG/VlJaTl
-NQDcfNvobbtHAFZ2hjCSL1DKTVZi44dTzBsZ3xMJBJc58zgXM05LVNbTwPhuhbAASqQWnUGP17Kp
-k4OA8mBNadvo4nIQpF+QEvaf47FMrY1SKtohw6/O2n3q682oGJWHEH0UBsIDZREr2iQZrEAfehtD
-vAD0cmF+RTsFGqkaBQ/nh1rM6O+hyHKxa6WPLS5tvBTPCOOM5NbWUwjgNRN020SQPhck3kah//M2
-GZnLcXGwpjxHSioLYNsEWHFUsKIvFXFa69otIXx/D0OLgeYj1XddW6wb2jkdTTQBKH2nVftoKMdL
-lOTaa631tV3Agxl216BBxoTD1ccYqUCWbv0LDe0Wh0+6dtAXh/Dt5+j0A+YjSEL8oR5pZjIyeshF
-5OOQ2LUaJ18GJA22Ify2FVPuN2zYuzP4NhZQOZmNQwOf3HgRutQU+eeR7xhE1WMLwQf5LGU3efEe
-2eK9llc/2rD/0UpY6KjeQ6a13wfa0CNZX9nEF2jTr9Up5k+6+EFc5CYXuiUDpVsihqBZwMw1kckX
-pcpSXlM0YONDVtPqvEU/M4u3cTil8j26cOGvKUSRegWxdGLxZytbkboZoAkE+I4XxKsmuUUCtLOB
-h6Hjq+e5C4a4cMsgStxPn6Gjoeaf8u6NVUqjHIzztgsaXbiI2RCXJKPt508qo1icUdBs8114PEoF
-tdXLEs5QO/nBVrYGYVvI6E39B3PhWSXRB6QToS/2kYXTQoL8Gvsoj6IfMKPra6ET9Pvzo5zaHMA9
-OBLUR2jgLvITUBd+0aUwq+NQinZdWgQGrBDJ3/iq31yKBcoOclsUB6WLuq+fH5o7CmQZgI+PBwV6
-dSb1KfRCheLc1SBp/QveCMIFdG/tNkVZDvk0Xb8l9q/hAz+GWsDzvLeALJFMExKOP6DQ098RqggN
-D1Mtr6I4y/eBVa+1XD4urUkbkE8nmiIPvGW9PhDLTheLdLSh5t2LuvbSqeajN+mHDhUXdFubvaFW
-n8O2EHyoSMooBlBmlYHpLq5FOEg9z+5shH2KYMF3q0AcfF9ISqg7yMwWAbqNtU8TBpnO6On855x3
-ynGYMaW5LE4GQtynRXi8qCBoIJTFDG3qgLKVwYs2eRGUG/yOIDw01Vrl4cTyMp5KKwRcMgDWxc4d
-pclTfRlNHISQY2fIcn1vpa3gDkVc7CF8PiL4V+zRJF7zAfwYz+a+IFgl2gDsnmXFPMBzEII0OosI
-GwlOLOaCG6u1tS3Q2VqJZyeH4t0OGRRNQ27t4zVFTqg3UgGtnCyhP+8EaBzEN2HRoZPWzIIf57/g
-h2OB9R6gCl1l1849+8WlLQxQqE0NIoY2IOEhVMhcFTH+aedH+bBPZsA6QxBAASvyuDyek+WBO5uQ
-okIvLzXrzdgHUeYmeqD9hiJmIolWRGt2wx+WcTHkYhmVBB6gibGBA+OzcCU1fo0MqXHTMulWJvdh
-Cd/Q+EAdSLDoX+uLqyGYxkBEGQlJ0bFsL5AsSR0oQtnKtvg4CqUNuvH0OrlVkXA/XkLERbvIKCEr
-W3GtbcqgmxBu0qeV3Hf+t7w/0KQvHCyOFptcNhEkPR4FgpaE9ROIl9bzxPvB6vBO8tuLUTE6Gx+i
-4b7L1zpEH4ZkxXi7zOjtGby9fPYlkqEMSg2fIqwryR2QMdccK2+EWwmBpRvLbGbZurHZnN+R8+c/
-mihvMzK1GX7IoGAujyeaDH3biTF+UM02tFun3+Q75Up2g5Vhls1MYsbxOItrh4Sx1cuEcQr3x1Pm
-YsFh/z7cvpyfzNuT5NxslOPZDHodQABkFHkHsMDG0mMjXaP24mKD4mgbum/2l8o+oKJvj9/Oj718
-f36Y4bxx3+VfvKATtZqdtYS96vQOWHj7l3FlHD57tS5Xcj7w78YZkgxZiIxx1DtvV8KufwLXfPBW
-PtjyhlmOsrhhYOVHiTDPZtpiEeKgH+hkTrFylj88lZajzGfi3VyUsJLUaP5eV+XmZ+w8vmq7l6eH
-NQPNN4/fc9tiEXbBMyejFDJMuQF+6iBDYD+huXkzOcZXZDwvVnbCvJfPDbcIuRbGlYQPhuudn2i/
-2r8y+/CX8/C0MsyJgPH+6C7f52md1QaKoPOsEMJyqBc5WAc5pqu7L7vn2v2KZNDaB1sJF0seVGMq
-hRXMY3YubzsOWLj5Ntm/vl4H9m3tvvAssNHcXLlY1r7fEmOvoNUhJ/P3G52f01bcYYy1qbfBdXjh
-2cmutVcWdr7rz3w/eRFFYhUqJSzDeZKBk/If1Ub400GjbWU556N6bqBFyFAFHIkCmpe2lKHw3Xkw
-IvKqPXSxsTantb2yCBqmEdVmNh80U/veevsQyeRCxvMsi1EkWes5v5Xazs1rETwiU5A1dMf+XsDk
-BrsG19hiBed8Dd3Q/QvuPYFYtP9am+Vb+nlu4EU86f0US4GSgZUH+VA/5dflQfnp3VJxRH27eBkf
-s0N4o9xqjys7Zm15FwHGb4ZQz+cdo7BnEGBgf3Z7sjzHsw2n2GQb3zUd01mDbn+otyzip7yINKOc
-xUk9Hwx6kNtwL7mPqTPZr55dsLz5VrZX7/FTAYCeIGD+mTQHz+Y4YtexmWbivGXxIt5InA/Ftcgc
-VMf6kjo4+d3Vtwhb76qdemldrKzyqbj6fuzFKiMrMyb0SMhV3H6jPyXbYNtvRzfe1hfyfq1sduqT
-0lKgbwGujr744kEQoVcdjVVR2xUi8KIECReVKnV8bbPKjaa781NbBgLSfkqf1DsUBbA/uIXjVdWb
-UPaCRJ0cQWmULTJJiCtLVYjV2jitxJw5prw/IgwFwpNeP1Qk00Ae63ioxJT1Qe4w0PIgq3/JrSwD
-F6wkKzF0uXrzKCpNLF4DM2l2WVpRMavGFhLVowZy7g3ak8ah6pLaEUc5vYmKNP0Ko0m6/fQqUsTh
-WUXSTh9Un/fPu2wiRy+hqgssG/GdLDbIsxJT1Sa9Q7U+WduLy5ccE+QNR+0GQL4GC2txDjDlqSbL
-EEbHyLrMcpDAqL+iAYeUUqXlSvyYSF2D7mtqIF9LcbsWbCQS09skGr0nrcmaHB2BrusuylSX7wCU
-lFgNVWFh2oWIfdL5dfmQfNN2pT2mS1SbgIbRvjpeGBUvjawxDLwspa7DekRI/JFoiHRt4A41dq+o
-QWvdEG0xOu1eKpqPv/za8k1XokE4baNC0deI7sv8cv5JCvuDDheKr9gZHf8kAa2mUJSKwcFpIUZv
-WJFtPCnSZ2r/aBL0RWcexkLm2g27YSW1/XjYFD4aCDVKwhTplcXthKCr0I+wRJyqMX+U4De+NmgQ
-3SC8uQYUPTHSzKjR6cRTVQDOczxJv56d7yx5QlUv0kFTwHly8zFCNJRW1ev5j/zxXFPFpOyFegCc
-DXHZlfcNcUhzFK0cA0WcTVMN+DyV/koH5cMjh88GuVIBlUkPmStgnvG7I+bTn1Ciqe0cTwg8e8BY
-1I5SX7HZUOkhbKd8YyRespHFSL2ioZ+8aukorUSwj0eP3wD0ZmYtgTRbFtvGqev9vOR0mUg66xs/
-94QHNRaBBVoNkjgXqBij6PLp1Z3jGEQf0D4SxfrjeadakCp54sG3r3OEcEY13qapoew/Pwr45rlf
-AOwAwuzxKH7f0Z4aow61F2w9EURCbBhP7U+vnyoqTESisEa78u0bv/uG8ajERgM2xAn7IrtK1Fpy
-QwERmh4RUTdtB2/72VnNsA1AlTN4eL4Tjmclj2KdYEmLTPwU+ocoF6YLD2uWlUfCx4BiyhrUTSZF
-1+0D7hDyL1290awdbGIzVxSRwUnQat+LpiYA2tB6BGKHurvwhPrfqKz/9Wv43/5rfvv37Vn/67/4
-5185mk8zcmzxj/+6Cn9VfPu/mv+a/9r//M+O/9K/brrXqmmr1z+uXor6j22b/X5pwjxb/p2jfwUj
-/fuXuC/Ny9E/bLImbMa79rUa71/rNmnehuM3z//L/98//OP17d/yOBav//zz5XfK6oR1U4W/mj//
-/UcXv//55/z13n32eYB//+n1S8pf3L7+fsW57Y//9999fambf/4pqMY/yKlmBNGMfYV8xPHuX//+
-I/MfUEQBnhE0OWPqTCzI8qoJ+GuS9g+NmhwgKpBpFlwOHmUctb//TP8HNsoaoYCGFLQraPr/vRBH
-H+//fsw/sja9zUN8zP75JzBBNuS7FGmGGHFTzvxB/oyEYt5q7w6IOlYTPs+UGIdKwnIzlvQejd1O
-joIvfdf15W+U7i3jGnrMrozKS8/UdhM+ZZJSf0HNEYFPDcVduHNukjxXRr/lNroQffNLWg7bLM/v
-p6i5rLJwg8b1N5TVf1VDzu1n4pIQF6+1GR1SL3A7Ib3rC6t0dD9zNKTmBRk/NKWqXK/utwXca9Hq
-n2Vd3+HI/RRO5a7vzFuEmi4bH6HTVpncvLVu20K7CwZcpnE77fp0l3mKCNpDuNSxUPblcJsCocJU
-VnzVYu/BF5Q93CMZ3X5x18jWc4961RhJB5ndo7TqQykhNadF1F3VXW2Ee4Rf97KXXLXJcIEs3zbK
-vINRYuxc68YOS4VnpJtQVEY0mpU55Fq+HV/74qrRH+XYAHDH66h9ShoDvd0cKdCp2mWIRzZNSSfc
-cJAY26cR/52lXlf+bN+nxFvk6b5mYvDFq/ocHVZ0gjO3xr8x4lZSgx8Kvuy6esij/8PemS3HjZzd
-9lX8AuiDebgFUFWcKc4UbxAUKWGeMgEkgKc/C9XdtsS2/dv9u318InzT0RGSWKwqAJm5v733KuOt
-MVbTJDNeHdw70M18pB+YaiT1bVkeYNFu+eCIor/TtKfWSJohzbZnnt1HxpCd2r7OrsiL2/XVB8Gb
-GBa9p+2p3Ts3afEsmyW2uvV0ZY8reUnbOGuoQNbT205XkVAwKud97rQHwdfpXaXMhmRKyTfnfH+h
-zmu69IIqcq1dKfS45r2OHq2vItvpk3XoTHFiTVrU9J+FOhOzgtdyPS7v1DVFurods8dsuFvKbxiS
-960n9p71kkkwOMWZVt2aWdQPwcmqyUPpJmfu4O85yuwAW3pYAIIo6+c706t3vl58hr55SMrqBMP2
-xZz0l1Nqx3YBkZ56/71M/Osac98knFO2HU9l1n0Cc3KLwwpcMYAc+J15wDc4JNDtnbgamiuZZJdJ
-OhwMyznAXgCN28HslP4pd9Qpxft7KkVP/UrQkSCuXHs6jEG178rkkJsLbYvQtWQ98MXp1+aYXeYz
-PJOy5CLV/XMVZDs+gIfOHM7KFgDQ6voF5bhztCgqM8xqtyzWe+4X+8xJTSoCxc4I5ovaXk/6QD/A
-LKZnLenBxVJvBgH7urKsMzORB5vEVE3NVeSr7LnPzcvUDk4SAwZa1XYnWVVnBya5YGkrCOap9djk
-43Oqxidr8E26zLUNC+/ciqz2qTILdqnfny96d3CKhLsvf1p60zudg/HUGJ23PpNc3tLdke97hX5V
-sFMrN365zh7Kxx0ATvDOH5a31tHY3+R3PHS8CFzbI0WqNODbEBlKqDTjCLImtRPvic7kft0pp/RB
-nvgAjV+03PanQ72qE18u44H+xrdgGuQOHmdHz2JQnTYdtYiUXb91Sa+Fpj4VV3XvvzdreT8rZKG6
-L8GDQLyP7bE4bbU+3yNu0y6vFfUXE3DpPlHDdFt06z2iBz2UZX8+Lzh3TPrRenriefLsRWruVAP8
-2i1jJ3i2nJv2saRNvyLzN/hNXIAq8cycecrCre/UVK0NLZXHAw9RuZO8QXoJPplq2svaneImML6V
-01CcVqV1OuXrrvMSSeNbjx8pOUlnVnalXRJt3VFjTagCkl7baDt7De6EZpyTSpPhWNjnjqKQlxZZ
-3HWzGTNb+QyB67J0FdxJ56SQGs2uc9w267fA6gAwFxPF4L0b43PcD8363hBC65zgNAic03FqPrnQ
-CcO8au6Unp+4ij63WtxrfnJwm+QJiOUeUQooD62qrX5iVEVE4fuV9MbLdBIiqrWZ7reFGfxoH2g4
-PAF4QZud4b/Bhb2gxoTee/9LlRs3aV5eptV0A4QFnBQdaM362TEG2GNArXduml3DGMFp11kBju2B
-5vhJZMYuKPWAzCig11hU2p3n1ZfO2tk/byn/uwP6bgeEjXFrY/s/v24tfrMFus3bPx2YPr9//dN7
-+6e7sfp+//TLv/51ExT8xAQTywkeF+pfcC7+eRPkeD+x4wi2kw0bGXQh9ke/boJM7ydstPw7BAcm
-rMTk/7IJsqyfcONQmqeThcGdw7Ho19/0H9gEbXumHzdBLgEoBu8ehz22XbRA/7gJ4g+p1sNPTrk3
-PhTY6tfWqABMEQ22UOM/wUSlEh7Egy3JHVJWvLLqL76QlCDrfq0zOx9AEIo7M4CAEsIrIMMITS8V
-r/RVauLTmki9lBw4GCtnu7W2luw1LxGu7FMFqUd79KUOPDpyJkfllzpMJqc6oWa4UnZoVGIqqMPU
-Jqm9NzBlEz9yTLo4JiCaTpO8qKZZQd7BgRPnukroQ7SpaoaB3egjer5IYbfYTdN4lw6K8ZWNxUjE
-XpNCEKM4REFg6ZMpliLgJ+bBIC78YoRIosPN+FTVlvq21kQGIpaA/IkWR88PV+ItBsWEbeBHnM71
-M6FbQxKX0kuvF3LeBctz4L7pOA36fV1kJXnnKg/ucswbj0krxGOeDO0dsNUWBhxloqdIc9sCR7f0
-XeEa/bXH2PuSTx1VpNDh6Y6GKBN6GEXzUpSifUiovNeiGtzqF2tF+gAfLLJvdNALUAgUFG9kqW2+
-TOYZgg6wL+qY4YDPG0orf82tzKYY1dOT995qxM2qW527q/xFG3cw5GoCO3PeffLTjRnUs0xMVCPa
-yUXpq8Akn94ujzCTS1pEA9ooIs0tRm8r+i6zcy0nFsjbNy0IssFES6UHeZVGWNOME97aXQGowd87
-s24+dUYZPLRzm7H5rtyNnDS5F/qCoyfM5nk8X9xloI04pdoz8sQg7lxSwA1tqFpxnQ92eqFLoVgg
-kxG4RC+elmDMLxK43GGauRWt8fZwmRd4gEJrmahnyCrHHkJtoGk87CrHryODTP8FORF2lmDJEH0H
-t06rCCqI9paK2r9t2wTEsBgz/VOTL+tNE+Cq3/VqHqYTDajZO+lE46HWxxaISQ60J5Qe116Eqg6x
-DPq2c0ntKbw3szXAlU+9egQNLz9rfelQkz47xjOWwXorc2px31bjzIqJ+ahjvbEqAhYAV+9c5S3X
-nl0vFxI/swg1o6zv8iEw4YsOde6FdusVfajXhoN0zYighxlSrl9pXCHXk5a69jJ6w/REMym9Bp4c
-y/uGppu7ls78Fk+4m1xCJ2vdUFeayewra2o6soFQGKFoark3hNcLWkHBnYWGqKtb0PPwNeVgLXEh
-De+asOv6OdHTCvs/NMt7KIHWjSLzasSlqswrp/B0dDCYA4CDFhNgdW6a6Rd/LeQb3ib7E/x3CI2t
-ptGFPfR6i3e1VzRNmp2bnJiauTzU8LTupTHVhKOJ8T73BeWmeHdE+VQk9lxFTTIvrxJKT7+jcN9+
-m/yRaCeYRX6wT9f8GWKPgm9lWHzOAS/4uSb++xz4iVp3g7caV+PqUIzWYx2Ocs0n/Gf5IHDY8PXU
-YKa8mzPNngXXCHYXNFPJ6U9mYCEjMbt5QUuVtoKM13P1xVUZO8pE9jPbcLqBm7juus7iFlHdBZ+j
-/wLDKniGazbw4GIbNO+GtJsf3VSZ9/Q9sNnR5qK7qqumAZDeNzmX7Vj0805gw6oithrcvx1/5ZZc
-dT3HHVnWT5yeKo45lXC1WNRic/rbSwE9XGret7kS7XxAUgnAShudmqLMHnL4iv9tHo//E5vHrQZ/
-dNENHU8mirOt0KI57KTR5f2xghwDeR9ODcTRv9VD3hdpA+l0GizzX99DvkIY6aJpqdzwN2XkHbQo
-J2I5p5j1b5SRs9indPrOLGc/lJF3+biVkHZ+8bJKmpCv/3295PYI1iP2Rmmr+/+kcnLhsNh1jl/8
-f1lOrhm6fAAYRe+S2hrKqS4Bw9ZYi4J2aFUi/Ad7ypcem21culr29HNZeS/RUG7UNPTvbKjVndnI
-qQPb9R9cWz67CioBtUUOFfQfe8vT2RJjbGqL/PZP9ZZ3jWw+5Uvjf0p0WVDw/w82mHtVr6+7FXFT
-22vEpYK4WVtUy5r2+HyvlnR+Cqw1qfezaVEbkGFh/KXNXEH5lbtU6kkFHT39a3Xm5eq1AF6AfV7+
-XGcuTFeeqsxQNH21ynpeS9jD0Q/15l5hH5bVycyorv1U7h3gAsB++lJ9WhbbVvtiWtcxYhX+F5Se
-u3mZKsCS7dAUd+r76nN4gOnD6PGKP1Sf59COC3a7zs+lJP89S39/lqbn9u+OE+4wcb/+KWLKQJwY
-F+jPM4ptEEFKfPunvx6k/Z+2ThWP8B9meHzbHFN/mSY41k/MdilgYvBKS9Fx0PDng7TzE8hfirWZ
-FjDFpMPnLwdpM/jJwleMRXsLSDInM/+pg/THYzTVFA6Td93H8O1QVPbjMdqG5yflONZxQ2FbVPR2
-cu+qwTpZrXZ6+05t+OUM/8Pg4q+9FKMRi/whW/WPI/Vh9JrBzgChYQDwosmYnKhag/ff8yKkAhmz
-YH4IPgzzGNmnvkfhWpxRlL/LQDvFDRSv/yHKwRjyN2+GMzLRLT48UlO/GTRr6FaV2QF/8rdD+eIt
-aMmzVi1XLU0S3iXIO07w3fE0bx1P9uvxlK8NxxP/EGzFYoJt/DvbCj2xIqkJdN9ogGqE4llbHu70
-LClq4Ob0JwTRjOP1AF3Pz/f5kszIk2KjY2i65oDPsGfNgy+3qccWLOgl7pzK+GqmqfW5ydX0XqVW
-usZBV5t61LtJYUXTXK/Yj9N6SGNzhjp6QuoGROBg2to3QQ7ssh0NXBVOlucQQM1i/EqNBWooDDBZ
-RCNGp7vZhZcZegrRu/HbhOWxrAqQZwhV0bwmIo9Wr4br2TZjoeLaHHED53qRPtmjqTb8lwJbSImu
-LkN3bMw8pjnAraJ18dB4Dd0evvWlPYxRglzTRivUkkfHLBy4RLNrvg04KM4sDXobc36zeOXnm5B3
-jJHHNK1pAgeh5uX0ADtmZp636dRc6V7BMMnrPOdVL1xgLoVpAPFdOHdNEedRjpMACilFK8xmvWzS
-iRpEirSaC8Ay8xwCL8htJO4V9GHui9E/yTV3Li8W2cM0cz0hoQxtNSY3Rq9jlsoa13nJIIMjPM+z
-uGkGM9dPesfic9YnTVpoR+tyqfe1eEzMUTH58ZfiHlR0+6XJ2tTnQphZ8goJpJA5Q9UZ0SidWZwb
-bkPkZEDoss8pIaaubfbs4ivjkuSBrn91D/AO2WCmsntYecPdArgeUtMSmmMqbmeIhS94IIpPTr0y
-mBlyt3qEHti/mPRQ65GJtnENQX5J4rQz3MeSyM7lWnjDeVPnvoHk1ozLLkm98TpxlmA56bLBf7by
-wP0ioK6jsZMLyGPEjPbCKWzj0mhdvomxK+V9kDbl3SQD77Rt6oEEXeeI5yCF4BVn3lJWrHDacqKV
-SwrDac7EiyMZhlK+vzQlBgqLrs+US/d1UjApuVw7kR2qhJkOKGIbGcXR1vy1TXFawach4BrJumqN
-0F0La2LsvrQycgQkGHY1a3qKFXTE7smMl4I2WtrZH8zjfMOAfVoiw2TAEvarCaRxdRBvIq1S9as0
-5+5maj33vWS0dMLxGpQTYpD2PGf5Swu7hpuMBqqnxBtxLo2lu85E/l1aREw0BBEuo5I3FfTgCg6i
-DZnWT/Af7BbkqjHEVDEgW2qpce7Os349OyMs9wIsOqh7c2yNyKgr8Vn6mkyoWS2WN1eb4ZY3DX0u
-ISLANlgotfRUZn0y70ZblwBwC61LdoqjPKDFPgesCjEDGOGGpDIjRnDlqxrQccIFmB69cRpADwT6
-RWN+6Bggz42mvhk6aCq7pPVM0gkDvplIqabKz8w+aID8jXr1kMGkdaGEy9QIdbOoidJN87qGKhib
-gTgWw30AXlav4n6s2Pp5shhGxoCqvOunxIorHkF+lG7s4VCafWtFo7/gzJi9LFVRl3eA4jptdYG4
-FQtYUhCs2RO6lTHHfplb+SH1AdTs1tVwzUPLsJfHkw2nhMfYAjMt227/ckp1EXMr+g9pNUJcyxFn
-tHBZcB3s2vLIozGBrEKULLEhC2323p2kzeoLpxnTuzpLpudubL1rr5ZMNsSatKQhgyZjL2iCLu5L
-lI6IpEzh0SWv8iJaq9Z8tqBsN7+H7qa5Y0YX/mg+Igx5B/wr/wjhDSi1eeZrUzn9HsJbVZnwU4u1
-4FbODPOq8ze2GcYWlJgg17v5EGwCjX/UahqFVos4KTwtro56zlBZ2Sf7qPIY3dTdbp/IRPbQSS48
-BLZnfLJi3iVHjag66kXJJh3xv4GMnU1QmktzflR5M8676qg4rd4UPKvR8F/WTZCqjtrUtndpYu2o
-WeUFdD669Gf1ZWgZLqIBbwpXmVY8mzWG5zj/vap6Q3hDD0sr2zwbzXpl9TsqZu40yhrgG5i3aNhE
-NUd2xpV/VNqqTXTzj/KbFATVGf+iynmbQOeBXSNEetTtpk3Ck5M29rt6E/byo8bnEWl76hejgDke
-pPWzOOqBDBCSe+soEna5diKOymG24uunoWlTFMujumhwV910jDa/NEEHHrGlmCpajpqkfdQnSzDB
-VyobLVTLTcBcqb+/rxOFqrlsAmcz9dDujqpnbo723rbW/NRh+HGrZZs0qh9l0snQxJ7AH+LpehRS
-16Oomlpj49LHi9ZKpwK1QPWmwCIDlveMHZFlp02hVXOevtpY6ktWcX39ugUh+pBhA8Juqw8lxq2j
-4IswzuO5sFV9J46SsLupw1RErNf9phizViEeE9vtTqkVr0AtW7pSFL9vUjNOMPPZyx0E6HLToikG
-UY/2UaDOK985kw7k5pUcNlyPo5g9kc1Em/5Z5N707mRTviHeIYLXR0G8PmrjukQlPwrmWo927jqN
-9iaPgjqgTMR13+qRs/RNc2+P8ntylOLToywPxR6JPp/HwkXPRrnXUjT8YFPzGajnF2Nqi6fVKqfd
-uqn+2ab/K9mX185xKGCxPN3Nx1HBfBwbpNsEYT0OE+ZtrqCOIwbawrMIQ0HwUGW59ZQfhxFopeZd
-fRxR9MdxhcqFeiy2GYYoHMYZ63G0QecZYw7oiYw8mjznsiiPk5DjUKSzcu0C9wajknLKrRKt30JN
-Pg5TZlNPp51mu72767Z5S7JNXpbW4EZetnlMabnzOcP9sQoDMMwMmCaN4Q1o4skNHQfOM0sS8x1z
-3UY9ibb2X4LjACjfZkEs283LaJRFsi+3WdFcmwZmWjt1LqdC9NdgmYs7pzM9hvfbrGk9jp16L2vv
-4OyKxz71nEe2Iv5dbfF+wdRtY6syGNy3+TjMKra5luVaMonpStLPWGB9P5p4jHMF1YvL3mqbjTVK
-4WvK+kZ9w/o9fwqOY7TsOFHzOoZr6jhoU8eh298/qWwnke9dXOQNjYAhq0OqEj+lu50wvnNxzdhx
-G2EXWCpKrb+ptC6It9nQAVqu+/T3X+poGf7wWhSkQPfBmYrR+mMjLrQkkTZV3cdF61j3wCdbDSO3
-lrz0vgaNUnpLxlenFqpwKtvGTgHKd/lWL32AAcgxu0fDG3TgErLsjHNLpAVFq4BaNLxNunE+z6q9
-p9fT12O+V/PrKKbVjakP6U6HHEMWtsbiG3lZeUNd3fLiOGoBBDw7LYm9tgxe59GaX4xcubDEu9m/
-GWozu3eFvX5pVFUjdpgSWLLifBQeP5f/Shnf6xFOwJX1t10B4WuW/yhgHP/BL/qFhRuSFi5IEogU
-OKu3gpBf3ZDuTygUgBLwdJuUj282xV/1C/8nyus54VOvQEefrW8RtT+7IZFELJ1ALy5iRI5N2/hn
-jAA/3kXHRpfvS4CMH++iP7IE6IO08AeVAH3Iv/xRJUAfPrf/1yVAXEvfPwzzP7AE6KMOZf/hJUBH
-R/t3j+ftIv6hBejDUvDXW4DA0I9y5xeQvUHEfOgCEimG1F0zUd67++7u/59VuuPv8n0j0Idv4nfW
-9HxY/H7zKh/e8b++d4g1/pdGoA9Jnj+oEeiDHekPagT6oNb+OxuBPrzB5t/XCPThUfUHNQJ9+Gj/
-JY1A27P8x/v+x0agD5/pXxqBgmSml8c3xkFe/rYXyPBzNvGTLAsLFfB/3w704df4w9uBPiyk/752
-oA8v/L9pB9oul49frfOXdqCPxcEf24HWRC8x+bug06N6aOxXo0CjQjvU1D9JGOPw/mNT0Mfb5fc1
-BX18fx8LaD48wP8VBTSB9XHV2F6U8CwJZLaNhHM+PMqNaakX28LHaSpccGf0BgmYnmKiTOxrPZqt
-uhoIJM1hi11rrsN+qPrkFM5RFdwXyVLXl7KQhXFL53apx6k/Be1Jgal+uKuyAU1+XupJw7sH1+Gz
-75Q6PqTApTT7ZE69Xp235pyABKtGT70wyZpMPRxGu1w/Mf1xiyFqBSmXr5rkmGuFvSm74JJ+HJx8
-gjZl46xMB2sUGE3Jhl3bqS6bvRSN6RQh4ldvnk920PSXpjcq9zJr27rbjbWNyu+sUOmi3FqpzmpH
-y/3mVH7WYF4dnGBXDDjNiOBskZammBROL2Gq4VNaaP3yucuClRcOcnvYwadNlgu7EWiYFkVjOXmB
-BXYbUxmcOpmfASJzUi3rIsmg+dUJEk1FNAFhUyX8un6uc8SJEK3PXna+N/bNrq/WWd+hLHhuzPw7
-aXD5rd36OJrMtEJvnDI+v9zTELy7vGekWIr10RHVqg6mkqsdjnaQfwk0t0vRk5f+uh1dPiCheu9i
-WPOZOmx6r9No1bTRPw/WNXtZc9p8d37uKztCcnXKWxjO5fCF7ZDM9LgY50zdGm1ZBv2uX6rRAeTX
-28vyubFrF/wltadJ963Xx+yUMqN5vFJqcsZwaZb+8yQ63Qjb1q9fFGPQ9zILWhtTZ10b8XaV5PgI
-1fim1sEv8LetjCNSY03tc5SWDFdIZTtXs+OjfTlW5t9oAELWsE07u7vMkqTm8w4Wbd8UFnMd21cN
-J3AK2KtwhuWeRnWjud862ZBiyEYDxupQa+OrPovgjrC6UUUMFBIC9w5Rz0jiMyxgm1do9a2q1huY
-hjXjwSajLTlIiuQtZyQAY65nBIGPTyQvRT9Y61klk+GBD9JS8Sjy0oiTCSOzIgB+Vw12zvdV29YT
-ssuYhuOSG2mYd1762CdYf6NZH8tHOOtjtl/XBtgf5bm5uigXnDF6DUY79LPJOzjLoHRmNEb1QHHY
-VEWDp2VXiSMCyOBEJIHVFpAmd7Jx0cTKUsva3SC1tTpYKl3uHLcy0sjs0uEeTi8Tq9xv5yTMa7E+
-9bnXfmX+yAxZh4jV7mbbR8ytaZN+VF056KHV6PXpbPC6YUv+rY+KYA0uu15YdeQSi6CPxZgbarP0
-3Dtbp24pQ1ufcJQS/i/HmIR6kMOd1VNxCIyZq3GdcYOfMNThedJ1rYP5y86NJbSrMnj3NSvP4jGz
-DDo0bJ35i7HRyyLY6PZl4ZWkbTR0tTwqmbjB6qydcYoJ5fefLa0Pnn1NVGKn1SJXSCuWIXaJ3XlN
-BGjaxUNtLfWDzFe7ighqo75AWuwxgbvOksWBm6bkRTDBt4RVciznReMrtc9dRUW3nimH6httXZgw
-SatuLw1tnB8zNN/r2ii9ZcOiCCPsPAv5rl3rwQrnLAFT3vlNIKJlXNV72htjNDqJhfrKr5WddUUn
-H2suHuOgSWae0DKnVe1G5jwnS6tGGJNV6XyrywppGLVtWUPf7gnS1gG12sj/VtPHad5xibvNkjDI
-WqASRTyjsvpmaXNnCA3cskWsEuYoB8Q+N8UG7k6MxtQIbyzzBqRE1xLK2M3W6Ly2zpxnpzo29Dkq
-KVZ47KeWINRoTuYQZ3QJXFaB0pI9ehVpyc5b68ehrLUnc2hKFSbomGk8r2NOoFkP5BItRS14/k3Z
-6oZMS7tPZjLZaeyMevneMCN90cCvXiyJBrS615gjhTxUWj8iNzjfK7mor2qS/qWS9djGC59JXBPs
-tVmPGMTrMteRzGnQnHdN3bhX/ojVMNILixABTUkMleU0iGc+DYyGXu5yJVRK97u4xVNZxhuRtI+0
-Mh0drvhEDyJiVsoNM6z+1c5flmkgZUb5FqOsotJJFiZOehIk/shP1zJ5aByZpldBMdRXdo/9nYl1
-0FrM04Rzm7mDAcfTaWA3JGPaiUO/akt2oif60F305iqeXae3qv2IbE5JQFWD15Jzn76PwWzStpI2
-ZhH5sljnUA4bF87whGGEjT+zwElDJ62Q8hS9N2qu1r1De31GKmka3gvLYcrWzpNzXWoGwjXzRaeK
-mSYyQUZD5COSauLHMkvInpRBdCsy0xGAi285SPOuogQjKgeruDPMovxqzAX2g3bkyw7HQVFVB2tl
-ubWZHVJ7ZmGTiu2FR+eJcFdsaLTaP3DJt3ZkkzEvMXLWQ7LjthNP6P/5EEMqIkayGH5H7YPr84ep
-rrKXrFicr7NnaF08DQNzstEmzhTXa+ks51MrS2c3oIWm4ZCYdnU2BosFH8VPm2dTuARSiio1/ZM1
-cIWBP0IO6/0iteCeZ1ENgtrNO2wPGu6YdNCtN8QDPAQ+vZ1lCIqFOKeAN3PF3uHozZD6F1JY5Q2X
-vefsEocRwwm92DyFtWYguyV0TY5hMBVcG2Y9ZrdMWReSjE4PttWkYfheEL78Siv0+i23tztoTWVm
-HITJmJc4RuGmMb+QvLFZ+rSI0Km5RGnruubJULnm1y5ZAntvuqyUUbKmNV4FO0vfmfc5bsSMNSEs
-WSfVfrIar4gk3jUj9IzZfRjqDhbESA85GQB+4zIkF28/pILdctSag34yzV3axix9/pXKl9Q4TflO
-ir0jTf3gJmNzwFA0aHsqSOc3K++ZgJU0anCvt76txdRXeS5zfZvHua1logsn03IZZ9vezHqQZDOL
-UUW+RtpeAkrQWehfamgfYeVUSkT+aKf9WW7X1syKwWYtXDzl2WHX0AoS4gg2H1xhWR2BO4PgIR5g
-SSY25eMim1A/rrTggYWampz4hY7czuOgb9JdViZ1d421wzP3qT6kKrZ0Wfav/Kx63gXCdvFO6PNE
-bZGeGvVeCCPgRzZV82VmzEaFgLQc7UxvR2VwowCT88MayBlpbbHwESVNIw/KzcbXnhTGPZWUFtgG
-BQM2YvsXpJc9Uz51IKzhpee9Myf2bnGa1D3TqZl+HzrTJh9gr/rnIPNUuFokfqJJS2w9KhwmTuHK
-V+0QojLUTs516kei9LrzsW3cb0FL8eqJIRWAVLcu6obdpEyTfe2U6zPZP+tidp3uU9vBDGI9nUV5
-ohdkSuNs0oI2VqrsdnqtJ0vcWHXW7RiI2C9ZKwPzfMiG/LzUS3GezzWPb6/yve7AmmywZ0wG/9rV
-OxWZgTRPVJMFZTxbjfmQE6XClC68/LmwO3XTujzAaFGe9LcVZndNlGHyX0lJZ+wpZGk9+gsidyyH
-eVIxtUsdi1KWmTfWmDRbUEZ55xissnvZsGPGLrGKc7AOWRFq4A1366RKP8wBp8yMRjRhRgmr2OlU
-lOldPrne12TQhttsqrybdU2MOwFsIBqUsnF8MGHn+6EH5zmhseSsmYzhK92DtRkOqrDZuFB1c6WB
-g7GJsToZ+FS7ye77jMASRrHmBb+nMew3sCtRpHRKXB4jqXvJe8hfxmW2nzxmik7Y62o1D64pteWw
-BD6Jrl7lflx0XQ8HteUedLkiufbLgNz62vnajjV7PLdl57yoMg++0kjdvppu7zvXBr8/T8tEa6tY
-ZBhm874r1dlcz8PNxIOuiZKsy16cZMa2U9ZmfruywUiJ/eQs+Y623DNLT/mjYjEpFu1a/B2DGiig
-ydlypFeK7C+FlQWlI2HW684aDRP5ghCvJU4hXXEoiTUGvfeBLeYrWnNIwNS2yVHGbgLOI+zGvBuZ
-E2SDwZXoXZSW40R0mLC8H+IAG5adVSauFybJVLD0lKLmgRf0icnf1/oveaVoRhr4m6/FslrnMhD5
-12KaloCwS0Z+Sao10GOnyXCKAQQuyfYHprgjLkaXveFY8r1ul+pp1CRnCxeAHD9i6OkmWG1tjDRk
-79vB8Yn81aMit9aUlAqT6Q2AgY6QUG7zfMJIZnlFd53KSbdjP22zCgbRVLS7lPYmMtWkvbZSVmnL
-k2wV852XG+WtbWXz116a/qVV14W384Z+eqwJKyTHrNTtWAo+q7EKME61pellW37IP/OKgCtL1yiH
-DjlwbiCWhqeshgepjsYpZ7NjsNN80zQz6y9q3auehr72TFZWWX8xqjULwloI75W0pJ4dMGTxjbai
-tT6vuiGLQ8Y2x4tVWRlsDken9naa7vQmy+7syHjoeovKb6d4lKnFQzBPls470bJcDXuu7uaKqOXY
-n8I28Oy4zoPlMPsJnu6u0MRdxd18xk6NkSVVFPy6gj1AGitnqaAaV3yunRyn29T3h3w/l7TzYijK
-3UvOrdmbcIV8muRG1iunpKHywO472hkSc2KZ1SouciOfRBykWvWyBOXK7iX3CqbeeV28V1PjGlHq
-eMSnUym8Is5EFeS72q7S+UwUIFZ3edq2b6RMbIacdOmmdBpYvP0+Taabsl+aYlca205Uh83wUnI7
-5jvI3csXfvL6ahWVCEIvW/GTKb0SKio6TVYHjxqJNqIlwk+vc83gSMqqCdprqkeB34V2hPvO5wwa
-M9MXb21v55zRh4W9W+FwAGavUOfW3qEmiaq6Mp28aNUH74xaZDXRwNEnnEZr8nQ8xanvOimID1Yh
-9QPFK0ZW710raxhLU6WXN26PW5ZwYGN99qWp+Se93XtTJNdsKiHSUfSA08MNQqusK6wIfst/Nzdd
-eZZmGi0WXTf67m7W5vQhld18vlAbwLWdEfIV+6EfC1Jt7bps+Ys5X7jth0JOM4JD0aUn8/9l7zyS
-XFfSLL2V3gCeQQM+bBKUEcHQ6k7c4iqHBhxwyD3VKnpj/fFlvurMbKs2y2Gb1fDKiCAJ91+c850+
-jz+jTMbvBR7GD69ryidn0KDHgebTJxV4Y7NtWVXptE0zoX9O7kQ1mHWlKbfpWofxtl4o/TceUlzq
-57z2wMHFM8OXuaPZa5ACU4bP3XLD5GLqd8Uqxqcld60nkE7+vOn6nrYr7UX7ES6gszDAxBwh1uS+
-eymLfuS7UfkwDFnQ7UBt9Go7x2oMdqXvNL/qNfN/S6mZFJlxFThUw2W8LxxnQvZIV7YmwbpaF9P6
-DFQqzx8OLj0W+jxXox1UjHTqPY9Pzq2le7RhOQVLvm1my1eHUKw2wOteZu5GTi76xsxyEeBGQtnJ
-SiJHuLWZXS37rrLRSaF8gelEI3mtIH1pBVtlzWW7554L5804dW51cMJe/FwCIl03k4ncT7gKbr5r
-szH/HrRBmtOWeGmDnjzN+k0ayi90dMXrJHlP0JogslqcRjlbQDVbP1j3So9TmUg5TYxsbCW6U6g6
-vdKDzunAwCsdb5y6Id2NRqr7ETWW/PJQpj3yQCP3pRkMv604H8m3Gzvx6eGTXpg9uT2eLGuRv23C
-PN49da10TebJi2WB3dnAzMC0BePcSQRjLYp/M3G7Sej4Cezw7m7peMyu8x3a/jiw67dKlNPnbDVt
-t/F7YytezXpcOR3NemrTpvoqqU8eCn9mypGS84EZVaLFQVuGAGp0Zk/ux7Y2LRk/+bBw5OaqTBbu
-4lvfjAMIHUTKrpfvpyoMfv23yuFf8U+oDQSbyv9a5nCHTaP/HwcYUFn/j3aNv//Dv+QO4g9CE+FB
-OsJBIkqm63/KHQLnjyv17BpHbyOh+VMJ8ZfcwfH/cK8YgqucB0CUuNIW/5I7uO4fSCPY7yKi4N+G
-MBr+DbmDQzLMv24WhB8jGQJgSYNLpMQVP/cPuqFxpl1dat/dLqD7HuKAiCywjuMm6Jfm4pbuN2wj
-OPqzdOeg7UdPayNGNe7Wpeeto8H50uskED5nat9GnHmTGtONZ2WUPxWFSEwXvPOmXELp8F8AeWB6
-rJr6gpwpu1U5Ej3PlAWKxRwM0TUtzVbRgprHLZHv98d8UA+6l8sOjuD9mA/tnnr0SS/ToY9VQdJa
-bCWU/e8FutrdMiqXkR1lsu7QWGc66F/bRXS3BjjJzmqn7OTnOYfz3L3qOO1vLLvzfwSB7PfcSvCX
-+LKHwlqY4Fp1+oXBxH+mbkUx3wXhPmuDn9TJiFc5CO3AhOQmhPPAy9K4WweQ2pGjGVbANH0StNWe
-Zo6RhzyDgkScNxBVeupDg7zzMtvpvbJAEoWz5RzKq0LaJ8Lt2wjLPcHXPmy8UViKF7F90+303Mtu
-2ptF5PfUZO5WDTS5SBWt6xxm4O7IGpSS/uNs1UEi6xZjQVoUL4E1e0953zi7Pqz3Cw6gDcKnaaei
-hrOsq73EqvUu96vonMbdZcSJztw0XijS11f76mawNGO2YQbBNS99fcpCcn3sruW6zfPgqZlMyUEe
-MwkQnEkORv/dWkxPq6EW87lbdjHi0TNS59Pozz5ZV+0qdhP52aBS9buzwnu1NMU3kH6s9ZXmYnK0
-5Z8G1LWJO8jvXT6wDzCDfoot642Qut0UhiDF7PmpapcHxcBrG2cMIXyORa42l0HcALUarNg2XobP
-eK7frTKEyzW/+5LqejW0DUKl9nYdu/M0a3ikYIu4aAmumkUpTzqk5lmKiUChXJJVzMyle1GRv+7j
-wTnEwrx7fI2X1PK7I01r/7X23cNgzYIrO5heorTtbp3JfKuK5TWfg7dW9L+LdWXA342HthEXlhNz
-8RjM1vBb+VHfnWZEr2LjtI6ht22Cdj71C2aa3QBHL7rJq2X+tvhd7N7bQjYXnyBG5qKYdYr7EW/i
-/RCXedmyWCniN2O1oZNvw6VdmJOknU+dRpeHdRYg4YY47q7ekB0lVoYoGMFYZVAP71JJWvPGTwcV
-vtaFxwA471wd8V44KVDlhfNrvwY00slIIzBv2Ge5/l0hRXVfN61qLwgm6VB3tmZg4SZ4wgq997Is
-rXbVVEOVgIvpZD8ZiUm4HNZq1K6oq/aNKUr4OA/0l0m6Ep68tSPLYhpUsfnYuGAAPqspGtVZxHF2
-UcaPokNv1HqWRDhaydXRRMoV5fKwJ2dB87jpruJxL2SpAUdMhtRCD87CqZj8YEjQf8sX6ARCJuGi
-wbz4orSBOJApuzVeW6tt1OqWIAgHhtO+8BlBHTP6mKDhgXaRUet4XqlzRZ+xLZj0YAt4FXJAm7qk
-Bc2HOwhztGpkiElUwY/du0Qz6P0q4SDDO8d3tNNBIWDOhiObo9i28iwxKZYzFhomjjaBmeW7PTK2
-S2bZNusWZ2rw2lP5p5s+X3Ahkaq6LIkqjdY3kZa4IZxonTu4bF16atKU5m0Js/4dKrhyfucOU5nN
-0MXp4xj5lI/CqWYQFgPj+VMZFeIa8dHG5lL1EfjgXpnV3C0MWqxLJ+oMS5E1qOVB2H1sXqxZ1gAZ
-qsA9QtTgDW7cYCxOhayFhR8os8WhBHIzb1x/nr7cXkLe6H35VIiUF6QR2SJ2WSqgO4dLt4wYbzov
-+MF+0X8QhGV+zb61fPnTFMhdmHmjlwD2882+5m4V2wa7gHtARD+SYhuBrNhnwm+DI+SxXD/idIqK
-XYslZNl6c1AUDDaHDBSJCubnIZzNPcNNd49pdjyWwXpjW2l+U5iu3YElrh8DpS9ZbrMfgOySpFM0
-77GbNPcqtJm1CXu6x98lwd1UuNcWbALbMZ2+HJWvhzTMLjOkCeYeKdPrrLdvrTVgdVPNJzvkYatl
-abY9dL/NPKvE1kGd6L7t74D1LpsVPtomjAbEsTjjkJm7W9EKeWg7Apy8wsl2xTyAdW6q51KNj8rz
-JWPICuMaq4NsE1zLyqtppXjt7LKwbmXvHysWDGjbDYFFDELCb0XMU3Ig4gtNetieG0uwZRFrcGqU
-dQl0uN4UVnnorpatEdqcrO/SubWhG+rjMFIYQynamLL53bVzwx5xrvep5TxkAguQnZNp3eOlSqIy
-9JLBSM6E5kFeP6EVS7nVi3uagxknDKfVZiwa99LgfN4uqdwzj2Wo23oI6IMPrSb73PRTyu14bZ+j
-+djUbXgHe3dMYDVjq2vco7s0O8upjuHqeMduMv2vcA22bpAVSVuU0zFl9A5YzlhNEg5czXkbvZuh
-fukc25wWPhCJb1F8U8iLDVjJ773qC5ME8/g0YfhhukiFtOyMhXWKm6rGHdWy50z8ceDEwI97k09L
-fRiAMzwHXZzROtWrRcvag8w8pwzUMkZccRm86z87n5Sx0XoIfXBGl1E55sa1qM320Z/9E1bSUe26
-qnCDTV9eJ9Irq3P5yAY9BB8ju57WN6gnbsvRPmSiWXdNGkbjDUPUtthEZs0fc7sxz3kkjb0fMzaY
-zKno/Saqr3ZfdnUQPJiUjOlkyJZCJH2l2/qmWqbl2MxrSD59EcXA6rJ0dZyz7yvZkc3oljSx1362
-+rO1jePJ0scJpTav6UjEwWnodboc2oH/6AR7+U96QV3442dtpVVwEH9rr/O8Y1heubqSp/TPbnzF
-u5KfFwZADtbOksuXzVIGTlMD3dvE1w7vZjC6wM9xXddSgmB+fl8jh+fKI50u69nR9GF/V1p91W20
-l9XlQ0i7MzzY/TA7uLssa5U7Os3haYh1YW2QDNaPwu5WYIEsCPTjQs3zeTUM+/dNGC3rlkC4EXsM
-bHIildxaRVhRgsAcMBhk8X2uI4q5Lh3Q0ctwbqgOqajaI99F322adIrTU2hnATQfSgOyVqMpU/au
-uE6Ncsy8VA0GLKqlhElfq2op1qSdlrjcWQZPyBMbsM+gKqIjTupjBgeZiCyh90y8DgyPu6M1XGva
-nksoEkXG18McMWbDSwbDFTGI80Ok1vciMwPkfC9jL9RJK94W4Zw/D77k28RqtCNk+XUy4bmx7R11
-WyIsQ261B+Rjstf2UPXtEWlAy9Uj1Gte8Ql29J0T0rI3FRasoK9INiBMZhMSxwvrT+xDywfHZ5di
-a1X1edDNCxFEbCEnPj/1Ko6DtBJWavd9F0yPvMDvaZ6nm9kr7+24OBsddttoYuNgIn1e5jo/yiE4
-URLdK3benxxj8yUwJOdl6fNg1fvB83dBWZpd19cfTu5AG+obuW9CDMzavJW6fejFcEzd+js0yYrB
-KQTJ1HtM2f9vfannb5lCe8MTOjIAOy+20UeHT19QpIk3t0QP5C2rDHYVG6tYvzuTvCt18Gx86Wy8
-aLxDJ8toLBL6NotdBo/etSIKxbsP4giHTvN7HZVJZODQqxh+zmi6RNwuoyMOZqzuwt56LKv8bY36
-i7fgAcNSeA5l+aMdWDpVvbI2mfTSg5cauZl085GtSAwsDJ8sk8uRJLi2/T4O3fNgR08OeWNbpca7
-FFwnvdS+V8PNMLM3BwvQbtMuul3rnmIUrUW0mAuO7ceoxTrkTe1DLoLHIPb35C28YVoRuCl7wSO6
-dltvaLHgxOaDq5oSecpvB8thmKHiA6XuR6PMXi+aS7zB6qrZey/TtPPG9uzWZjrk17FhLtqf0g0A
-7E7xVyeDjZcyXevFeVXLW0xrhOXHRe+ggp+zoChvV7o+ho5etX4f/xwZEyB08LPyI6cZ4m4Bh3/j
-m/DdXvX6yw6t8Vb62Ss50eYZps6WwfUGY/uJY4C2dZ53SstzVy2vRWXf1OsKe7aWDxNI3qAOb3t6
-N+rLXR7Z49syDLdrOz8UNFYXHUXPfmlyhkuuzVHPACjv5viUDSzeIjeOvkHmS5YAxpSvmUQG/vSW
-wXFL+tFlL+2xeTaKLVhQyYdUN+2W8ZiViL5wbyQ7rd3SO7w9eGCLfea7ywNpQg+FBP0FOgT9V9b+
-WC3EStkQTrdcNu0Glj1u03lenztcFCf+D1dthYcLfvF5hqss/yW0FScAtZrzbKQGUSaG/ToEnTn4
-g9e6UJEdB/9Vw4r0HfDXVQVQ9Cwj/WmU9/6w9D56DkMVdU8XNzd7oHTZcLJYYRD3IVP7SJmetwly
-jlQfimzs8x1tjw+IrHFzW52gpo1A6CddAjCNe/b7Fnuv4jqnZu+xioXlgVcE/GnMQD7knGCdEg/5
-4uDa7a2bvh35Xbdyrfx21jFpB3Wl5pdxlu4nTv1puh0rJIcJ7sPsJodlKGiFBrhrgFD6eIUb3IUU
-bN0izkVerwQapMrbTgxgWs6EJd+x+V+pZruGn8qaQuaXFkIWm0kiNLO6HbvbgOVGenTpY+7SIKXh
-EVNFSW5lFSUtzIDmp5TteB5orNjc1mFxalujHgvoo/WN1fbeb095+qVWaxbvrVANFLUz+PWeNMpt
-O9tfQbl+KN/LIamZmBeuEem5cad43M/sOvPNqPuzieWDG3pvJptv4Ftc2J+1VdIZ176rolngjJ+c
-YK99S1YHDFbdPhzqS+cBbIwEjU+OeE6xOGLTRE+PbO8qF3Qhavv7chw27BGHzTQAaZ7XB5+BKPo9
-9j5peOv2UKQ1N2blDQdPeG8eXeBNGrELbDIghFOz7UpIdYtVfRn4AccesRG2aVBcuq8ubPSoLQM9
-bWbHfTNlv+yqNfzJPXSZ/flWae95jsNUnibUV8AsPWl92aIWz3KxXYlvMTNqX/bDE5MteZuzZOG0
-gNT7ohokS7vJGsunppKFs8lZSVwNzqUGihE2obmNsKMdVpDAGNVzf+LnaaauuGEDf2eny77J0YC4
-PMWI2DQ7qJ+9bS7udWfqNonB1UvJNjV3RkBlttvvubv0t1ODhgacz2ee2eqAS9sB7xGlnIzunsvo
-R8V4gNJDaERTa86JFbtPtI80/uRnsuwVwrtr6uWDYdIvS+HL57a2v/ygOWf22DzOc2URxTRNB67n
-tX7OC03JF08axmjjD/STqrqWXmO/WDe05KLbFF3LX7GbiK0xRvb8i+6HVwcnrLfxs5BSTNkouXZ2
-5yJuwRclCXUukU4ybrvKhBqriXfUoTz+vooo6HJHp4/c3WredsS176fVD/cIH/MVGCUWTrAg3vJe
-V95YbzvTdyiTSOjkVeljVBNFNfFAKz+durtOl1X/1LHkSzdRZ2U9+SnN2O0QtTJPDxERiB+6FtHH
-kl4HcfA1rd11q19v2fZRtxLCci0z2SQ2+zkGBL4Lxpyboves6XsLIdQ6oy+BHC5CVHMzLL+Nstnr
-O6PdPGN7NjfOFBYPKNCi35m2NWvpJjpWjBSp1Q1jvba1fzQe8zhglyVI6HJoX6M4nXYRGNN26ZH2
-oZM9RcPwq0KlxpKxmfZyQHZzxg+st+7U7jo2XuKczvG4HkNXdd5jvoRzxdN/VWMwHCwAD8CZyc+T
-sJYpccq5Vzd9GLftwVCw/sT2i/4OgvfyW4cqFzvh2jijTVFM4tDnnLSXKWzqcz6jHT2h3UaXUeeE
-a5yAwSIyWgenn2/ILadlKTQT5J0VcmmwQLaznElMy7Atq7xYndsSCfkOjCYHr+qNvL/Gs7MLsFEf
-oWecP7Bbitd00fa2lwPCyRxBDXi5+VLC83jLKC6a1etOdlYxWWLG88uXLp9JWwX51xSF5aHhzVbo
-pUL/dWTHirMT5dBGB/QMkKjEs1ek65EnQQimUXztBI0jexi7TqP51jTWVRCTe1JVd4gXZ+e5R8TY
-7zljan1fTBkEaS9gxb8dZ5qXUwGdPP9aO1s/0w5ivaZx1etD2U9q/przRl3N2GoJXoLRDspd19nD
-uu+yYF6PJERaJSEDxIwzuYv816mz6/qJIritH714ybrXfPECdTKSKBxCJCFSqJ2f0cbDyEG3tjNr
-M9aY92uBwMzNsfzfxqHkNZjqgXqBNN46PZJmgBqi6qwif+FHcWGhCLr3vWMDu90NwlfpY9k3HXSU
-Yi4+pTeD5FadbTm/A0dX3zPem9+02w7wzpZmHXhmk/Reafhkpn5efx9UrvUBRAMUS6RafI8T5GSG
-Q6mn7HtZ1ua7bxkz7SCTRwwje1PdZAaa8V5rtJq8ddNVwakaBMvspBGw4JvEU147xnuW3EDOA6Ve
-Bwdj9LpbZYkxIhEByXYyTGVfbeVsQ5WIArTju8iv160DMCbcydhLH+l+spDRF7E+m7VzrlKJJXTX
-HeWx+tlLT7JRtipPnDnYSB9gNLdyQhjJodYjnrh+z2VmdmS0c5S1Muzni/DL9DQ4CIRYYkfX/n1A
-p4jYM8/DHZgkGw462FC+gcibi0PEk3WBXVOq+9kBpHXOge5+8GRaCeShMfxwhzT6HOfJf+KMoAqM
-WouzXkeU/yZN0O/n3PUoFNhtZN/HTqXoGLrhsjZ6hU++eE9lkC37VsXhdXGWXeLRO2lj3LcFBmtF
-zXzEFg1pgrnnK4Z8DBea3NrDmrXyknt63q59PDDOJNeqXHV91zhjcYzb7it12mFv25rAwyAGgsuR
-e8GMP28kS3SkaTLkFFSkPsjMPyM1c7Zt4J2seP1VhdNJV0RURHTTrA/t7eKKNlmM8wJ8Wm6noS8/
-Q6eunw1n+HF2StzrrXnq4+5Y6/jJZ8T3Azjui4jKM5Ej7aakJkkG2w2faxPfKtHedaOltmWzHCKR
-T5sui3aqUOseRJR6Q3j7c6yl2MO7cc5RtVi4vvN82UwAqoGaoL8qNx07HAY7QfjfbLj/K2kGibqN
-Q+q/XjU+fHVf/+s/vn/945rx7//orzWj/wchcDEGaNd1/7YT/MtV7cV/YKoWeHgi146IIPsHVzUx
-Mi6kONumzAujMLoyz/9aM2KqZv8IJt0Hp0BkGRF9/8aakfSvf94yYudGAxDFseswmIz84Ipf/4ct
-YyHXiJkNPLFSp91bSzDAt84Z1Is/TBLac4GO7eTYkXxrWjv8qcjXeqncPMo2XivNDWDg5nfElP7M
-Rzvt9wwfySHxfYjgGzvqKdiklDhAlnZlKll4oiy5U5AxmnIoHmKLlXySNqzmmVV32XcC5NHgojCf
-qbT6rkl3RjrVmtiL1J8VbIPPPixzsQVLTtta9DNunNIjQDDpG0ibCaKO8jI1Lor0eshQfmgwX2WC
-bGhpN3HT03TZeeqs53GO6teiDQbWqWGsBRXHGrzGPf0lzGk7wGAwDvaTty6sYEq/rW+hMq7pBWQD
-gsNoztxvtlqZxhLdU9tUVFb5gPhs6ggrgQC1W93ZPTKjqMutZWfkZQBmoE2IJ6OfbenEawKu2f0h
-4kq8W0Grny3ZenMikRWz4zROfzE4Hvxnz4799aArTGVI0GI5byor9vZgmYvwFDrD+uDaDQsZV6NX
-WGsd3nmmyb6EdrlLEbksxONej9hz2zf+K6I/Bo86Qu+8CSkpp0SMxSAPXlQV1nbo4xlgjgdgGzdF
-W124cXD8CCXLZK5Xe9fInmaxL0P/MwuG1OLlFpVgPCnKdRvYuA6S0FEziY6rZrxMm+G0G8uvnZfG
-Jw+NtY+CNj0x5H0coCTZHMUzxZ2a1BC/tY1SFV/MbX63dafTY96hEt8KLBIfvhOY4eSqqfosSjOQ
-UNJl4kRLDuwEsJp8Dy2oFJsR9rjZedVAayfGJY0OWDD6HCmdm/OxK2UxgecKUnT6jB2ouHoWO4ti
-oLsZc4Ro26BsrdfI9Nmj7Fp/gCuGVg493szogzXiinzfsJTZ2sYpiR0tLJ/YGNne1MucWbvOvub7
-gKaZLUZTUfG04IrgombSDDiwiVkct2jLAqbcedadtOM1cqe7uKxYN/nTDdc6UXbUNNF34FTrVVS3
-Rl4StmOLu0OV3GJ2yXYKcthcvTOPmd5nFXgPVlrSFYRML/k5+t7c5UEmP5giL7/b1BLBNkfsGO2E
-lB71uJPb4Rbs3ZRvA2H6V94kdNwzK3izWfXCCMGJCXjZK5Opb1Zpdfy2nIrXq+JvBjZTlM9eXo06
-CVwpfln0Xaxwun58kEYafq2yEnIU9Lo9s0kE7JRY7gPNUGr2rSOiBw8p5wcxhCbYDAJqD1tIlNWn
-pvHB4o1yiINdahSb/mAQFQmRfsQgj6yF5Wz1BZrbyWblhvktH2hkrJrcvziLnIcpm6MffZ2iDq8Q
-CScqNNYPDXn8vWqyN3sOGzo4lXXX2Ai/f3LRGz86nb02m9nNneBQAE1pibey0JqRmrCSzSLWMkvW
-zg2anVtiHtxktVhM0nnz8jhTn/3uPRiHmzSto+/1WGgWQE3RMthnaE9kj1fZOF+GOIY7GBhseHR+
-163NaBtEb1Wn+SxKz4V3ErDyYqJU3gn49TqpeS9gsIOx3lZ53Zx17rtRQkMIMnvJQe0lDgi188jh
-OSezXxcPHSuoYOcF5fiqECZxuiLsKshUkEhwdcji9yiIE7JlVn7SITmXdJls0oJaD9xi2fAWboti
-0MMGz0H3UMOaIrIehRVla8MTUYPcdZNy1nCeqary8obZlPPIyNn77Q8ar8LVgcS4DAA+8TB0NElj
-z2ZimO0Vv1x/KX4yjEFF3ZSe4QPtuMCtgjkP36JFZREZPm6bJosY0eGlY+75B27TNU4QlWoPdbfr
-n/oZzuFGovIztO09Q2qLReuNV0Kc2WKeRBbW+CXuoKauWzIRUkTJ27nw9Mfs6xs5g7S8G1Qk7J0a
-LSBOk6cZ3qu48UnNwoq1ANiUy8uEI06ffOUMly6VJcAv4ujeR10FjKicIKjPKaknhIsVMtiXqghe
-Ydw53UnZzNd5yeR8tLSCZJmK1v2lMWdeuFdwNyFRU4zDmW0eA1uq4sDoj3amyUIHkmQZVM9BjzOj
-W+Ad7/J+kq/CpdmnKcxi1kazHjq2osOVPVymrH6qLu7QmSGp3+SLLddtl0tupzT33N1Y5pSzgrf1
-EQ9j+xQQrVElJVLPFwTf1Zu7eghx09wxn12osrO+hpNswzlOic5axuZVjG3MjeVIwn2KAo4ZaovQ
-uVNFnaa73h6yL3QX8rUtF8iCzLOyH54uO01wQeo/y8LndWPxNX65arF+6mgKms2/L3S7b39ROXe/
-fhkiDP81t/Cfkg/vx1+d+f8y65D68P9Vf/7PHx0Kwf9DJP7zr/+98gzDP0K6ezITHMd3gyjGHf53
-nk/k/SEoSV0/IHqZDWnIF/lL4Bb94bDtDP4zwPAKkPqr8nScPxw/8jAcUZv+rZj9NypPpHb/XHl6
-ATVnRC4zYDyXMvRKTP7HylPNkSlo+uykz0ddftmYX5Op02ilWtcDQlcEA4KEYkBl3WKu3V6HYnei
-T4tzMwokmIibPiSa9Pt2JcWlrTzSVwUGgKEpSdWahULHcXV1Iioqpnmv2lIedcdOpfYs8xiIGeCZ
-Lwr/4ESss7MRkKZBG9BYlmYRsrQfoolUnZQeiuetU5KqxtSu/An4EkMYARUXM1mKsRku1HOkTcEE
-VMqHkg1mvp3aPrzzcWBuWk6MaNsEHKbE8xb7clrx0TCm4lIZWNmalRqJELYzY8fR3NrF6N5O+dA9
-YoNKt3WZs51zrmZw4KPZFr+yuEc4Xxxg+HGZudotb/MFcVbJwXMKnOkVOhicXd+r5Du6H3nbDaFC
-7h+J21p1L5iqMqL9tEd0XbFx/AptzLpmD+u8FGe2wOmTLsoHlfYoN+B/XdqRi8Nn2/AucUIfZy7b
-00LAF+A721NvPRlH2XZBqI9f1VgHMxf2CybGQMKii9+mfGyTdULM5PtNcXRdyib8FuT09hhOd1E9
-4pEO5mqhXG/Qb1sz83J8x8tdG9YMMGLENdQk62moFWliQZGfdOo8ke1wDvL63QhYGkzz83jgMI8m
-JsIFTkGnNs6WYapJsiWItzRS+WHJbLnNVNnUaNfbec9bib/J9sqzMnV6s1a2RhGJYli4md4juGbt
-VIQ6WXTY742xwAvHJKIjDGRaGzXuKS2y+vuKumhHGxAgvUzxBrJuABHrs1bdhtqT93XrPzl1Bu0Q
-k/ZckSSnILgCjtZPS2er/VogmWM/Hh0nLCqoZPh5CzqcSwTygLGVF+L4HponoKDMHHtH7T2RjrvK
-tNUxHwuWbfHYJOxVJvNYzcEU78k1xZee9WjM8ygtx4DNIpq3sxwck3+rWCj3/m6cJpEFF0WCE4RV
-ivKAeEtsuDhjfQxVnr8vtMJ7v8ldB79W4q86bZy71rEstF2zWyPGJr6pLovJkMI4Lmt2ExZgZR3C
-crL6BOBNJV5fNEnbaVLq2mX8xUaK/0ixBkENlt0oLpqfYbrqV4khMLExl586sWQfVa7YB02BLR7G
-QLIk63ixUj0qMA9p2u8oqJqnss/b/ewX2N0GRjZHDPvhLS55bDkeUsXPNcbIpErXcK15hJ0jWr3Y
-gVN8ljISRI/K9nvttuLQtTK6WwH02qR2yeKQskh+Wmek6hvGuVQsWvfqZZz86iZcu6tYKY05pCao
-lOQLDCFLTuk1u8IfcPm2Mn2esa2gROgEP3677lNVOshwBLq4so7r3Zr7wTkfl5DcIGke6LC9667i
-xUOMe+umbVlt8jRGnSC7QX8GyIeeYuGYLYFbBfwA4/4Momx5g55MW4rVV9/6nvO41l66qwYemDDK
-3eeFQvMp6tfoNhrsZpdlufdge4P3HjVrHYDKZBo1uXUwnZ25YyddeFfbYN2n/u/UddyXroWoSPoi
-NXCf19n7THTpQ4qMC6ubcaJn28cLP1YZkmJLtcEbBGvm0Rh7EvgI7MTyOU8cy5uwlGBwOrTRtQJG
-sISYNghYgdGNhdausa3+kkZpyolZFo+zQdlMOc4GvFELsvvFsvAzYC4oEsmQ4l6PcD8SX4uFfCbm
-z5jEKZMVdgr2rTWRbqqBuZ1e28+eNG5+nRv/hcG1+KrIbpd7N/AMJfASPOe0awS42faDYPDxTGPj
-nbMx87+mTjiPFST+u7kvkQ6nS7Ru5v/N3nkkV46t23kqCvVRgtnYABpShAAcTx7aJJPZQZBp4L3H
-bDQAjeJNTB+YVbpM3rrJuN0Xr1lZJHEMzN7rX+tbLWtW5AILnAQvxyUaMFzPvalvZEIVYqq1ymey
-Fma9i4Gzn0fDnKGvUgPJvQiHRtvP/daaZXszaTV7C3LSJ9Z0ASEd2eym2VHJyicdnWgRikUC3L0y
-DupQ9T4DcDy4hjG4rW69qLKzd3WoTi25mKjjR3Cd+D2PSl/RKkgpsqQl0xIV4R1zZBAuu69y7MML
-jaelO9WGfS6CAhVRSxyVymAbEQS2+w1zMWieE0n3LelCMmKBgek07PJbxdHazcT4rUd5ZBTd6aly
-3TFtGcDEG9V31VFLEjnRTLtWk1/WtFQKrxpD+zItzOKSgRFTeDZElGnkNopqFnTdJ9r6YijNtrDp
-3Gizx6Dn6Wh22trzqVjmbraL+HZeSvWaFGW167XVrqzIhjxHVp3UKkPcRtJhj1YkGDIbmSzWV7Zl
-mjyQS7SfI3AkfJSByizH4lMlQAO7H2hYsU4axXNfMl3NMwbpDqDY85REyiVk88ZTmVShRNN19y2n
-RPhBcFHvIuLybOZDK3jCHBPs8ny57CuZ7ycCr8aoeXkAi7jUcxR6exDHWtWvHFqXcRRNT20UtMdU
-E8aDhcyCYbu1tUfc2JHHXjv5rGLoeykmoW8WLe0/cderzynRpkNlh8g6NXpZFM2Vp1n5J6w/55rG
-A7+dHPNUmWp6SYqp27axsc8K5S5GSfM7OdErnEXFkeAmraIs2XvSlv6k991WMCnkJfB5+okM2pMa
-yXwH7abeWWaR+Xk6qZftaMZ0m+WlX8e2PHANY3cxdKQYtZGkowFU4H6sH23GTGBKTLEhszZfNOlY
-HgeVxnMmfMFuapVkHxOC3gaaat4RKnc2PKYcLLDGcj2m2nxVET58zMeqOjvDWNyBSCp2ppO1Oy2N
-sN8U2uwTJEu3fRLII1ve4QrpMj6bNh2tmuy3XGdN7yWEcRPNuI8NjXSds5ltSv+YNF3SnHKkKXkT
-p8vWDGp/GO19gZc7UmllbL5Uxnd0InmFl8Uhzq8XTOxH1JTdYsmeQGpuBDfMjcLHtlB3IH+g8mmw
-TunneCKJO54xnbHc0ZYhwkNNTkkdlQtBGlq7zDnxJr+p9Xjx8uy7Y9XO91Wd9DTR1Qtgh45fYOp0
-7hxG+gBZTTC9VnehVy3XZV8391gVhD/aIS7GcokkntEgiJ6HgYLn3CShEdZciX6PI8HVAvUR0RMn
-ZBlD76ZWgIx50rtLMkVYfymPdGEqaBs9nZQXtcTbtcbvN8zLxo2WxyocaKA0Qzvp16EV4xtGtABQ
-lJPCndPPrZp3GyVkk1zhoDyyQB2/jL06bLFv6Ih90iQtTK18hzS8j/NuOdOiIL0qoI6OpITcKLgG
-/KjA4Y03umIZF7fOZZMu4bZT8/IGdx2rV/LSMP2d+CiUkFBrpDu3CHfzruF0PchpVXFF71NsOx1l
-kxnwj1KJINDLnZwNgvEk3fkRaNYDtgMfv6HuxzkBF7OkEaceHO1Ul9pnCMv3JOAflRCbc+Ws68wq
-JScTKCeqROEGyPkmMOhurrmruFOz5G4QNYtfK9p829ZhiCs6iVBgmBmOQ5luc/Ify1gEfsZeH6Mi
-IdUxQYKgV/q7YdCd3TL082Mxwom2TtVq1TF0e/RYU+EaokJbGKzPyDESdlvkmWuFxooW19SIByEi
-NNiZCxEHwVOtMeOXhEmmK8ZW3yYVP11lhDrsSn0CcfK9ivNPsnKuZq0u93WYUWYAewBjrkXxnoph
-P4D+zb8NPjwSjwYh4xiEM3uVpOwhlQTl917rJ6ZvraLtWzDQXpah4FuJmmxwvq75G/Glq5zy1GZh
-vjWUwtoaVm3vki7JbosQ88Lcqs3GTLp7hK/4DNmg3talQHu1AYnPec//G0GTCOuCDkrTHTrts26E
-9BzadsJNufi0NMOhaTjlE6n7M5Ktm6HVMhWsCSoG8b50+tQLNGrKbfogXU0PTh2I7tsMJNW2NpmL
-KkpCYCNFn5m7yDngpObk56my6wyd7ogoE0eA6eo26YqBLuip9IZO0TjdW4oyrLS7w1vUHJTMJqyS
-jDi9IT+lUX9t59YDPQ3EQ/sl3YTAemCn+3j45/ZQ8XsYC7Phvl92tlpofkUt8qmyEjRoQ8FVJ68T
-TFU0PzfTHhO/1/XxQQpg3/nC37LxPuU/CPS6an9Ol6k+8tQd9kUzZXcY6qKDAKx/oNImZAY94W1T
-NBZ2mCdt/fDvyymX8dembMsf3X9SKQWi3G9nef87ew7L518Sgz9/5a9JnvmHZuqWZZPrE0zL3ugp
-TPLYU0OyouHJZA+vvilKtv8gt7dmAiWdCa/zujd6ivqHoNsJNvLalky859/iI2v/PMlDmkGW4S+q
-1opbfgd0bULyt0EYUlgwmmZ0rerajMGGqhFCHAu2jI6gs34W9oKHi0ZznRT03OvBbsF3Tg5gLqiG
-XUSD5OhakJZUBmZ6931mtXUnV//GXTTY8ReAhyq1bFgj7yZCNcTsmYPR9cFT2sURkJ4UJxKopVnJ
-eqMmomxtmpb6kp1aI0ZEgwzLeyPvxC3rYitZjfRTslfroY0fnVyrrG0Rqeq41YBnkSIQimrAWMHQ
-t5Gp1XsQ6jhYajkP85AQjgll1aT3TsxyFfeZOtFokoSnbgCC5yoaLeU2rbqZV86TpVPY3jfF2Uyr
-kOJmIVnQR8ypfFNz8gtpSGA1aaSTERRsn/dqNbP7jNOSila9aTW6fDXNvhyWafyuIL2ENALPwPH0
-JikbZvCpcxeJmM131Bn0GBhlTD9LgJ61eFUvRYysP6SPU9Xa2X7pxahvR8YqvlKxQnUtdV1LAKJr
-L4d+ALojnDF7giHZadtYn3tlo4WaOrv0NBiFH1XMQ0DVOel5IF7+Jca3MVBmOwkFskUZ4ROO8Wm1
-6TBJr66W5c7sRB5vCpJMkVt2A4ayQa/qHz3J99EjTDlN3piXUbg1mb20nxZNZHIzSjW5bCDX44tU
-g773Cwd7vm/XdfbCgyN7gnZV3YXE/54J3482D+GquapNbH8bhi68gkgrK2MfkJ4517POwHDiL4iN
-hUXYuewbTWju7JjqD6NK5Q/GS6ri2nWT3FAP3WOxpDmp8fTCTtPLke4oE+274a/2rwS3UY3QCOdX
-slu3Qt5yKyHZVhYm6KGqsJW7wmEo5OF3Hz/bzrjMB/IErMLIYI0TVPuZHguoJjzAcqng87Eiu1iO
-07gM9T5j7b5Q6iKUx8zSerqFVCgRXqwuCIT12MQ3i4Vvht69Na0na+2blQw8HfDYlfpJbzDnuI5V
-YWHndmLed1aBy66MG2gfFrLNV8NYMXEm2/V+o3I1kJyITCPbw4+GagmRMVtLrcq697JeYVI5tnlM
-Vsns19wB7BNzh8JCJ3eBLvDYEWaHv8KmEryjqdTa7o2ofP2TZfq2zu0djFNQaWeajJi49WEUZL7x
-q047ZQr8v4WLvGRT+U2bRISjlk+OgmNL/lT20ePD7+XfHOs9IfvPg0kGPDqXk669E4XH0l7EPIgM
-131e+BZ3VcUzTau9aBT2RzNtkATr+36PSAJsIU70Q0imd/9fD8T3QXourt8PF/LnpSRK/3bA8PN3
-/nwimrhUHB566lpr8aeB5R8TBsuxBbj+NXUPHfcf3hb9D113LN2xKefQDUOufXt/DRjI5PNUE45Y
-XQ2MJv6t56FtrM+7n2fzWs9I94XJ4Q3qDplZ2GToV7LtG2eLGAlMoUzXbIxz0El9myrLpqgWoT+l
-hqnn+35SY0fzp7hpJsYLdVJx0fdkXcsvKtzAcSPrWmHb3ijdlo1pWPtpQ6vND+T6Ln7W6tA81k41
-GJdRsVr5VPKf1ZWMxlY7cU3V0zXM3yY8QBYxY78i2QyDbKoUlyUEt+9hkLedvja+iGpMdyWTex/g
-C/gitzft2SK5XjfRl8JWFeWW2ZyDrhwq+iYsEX22aVta1gnanPpFKfuSPxJFSIIaen7o9NTRpoVW
-fbMwh2zTmaa0+5jm9BGTvx7H9yYzQ5KNSU9okbYQXRcXMETw+stlTSEMaTNgCmmi6X7BINgB74TP
-N++UqtPEuUh6/H3z3EQvA6seVLu+7g5DY3b56o/EelMGDeGxJOAdU0/jgBQMFyPCEzkSSjCGJXrE
-lUN8ICpqBf4VpUqh34XJvDcKqgITApjwQliE1DWRAR2SJFGUZN8Zan5uRwY8osVBwNzLbatSrW/b
-PkqT0xRyI7gcHSnHI4SsKELCjTJjPBZzqAjMu1ES3U5W50Tf86jml5Wy0yJGylZLqdmcqQJvaBmQ
-VcdwpNVb2JJG9sDjlX3HPpOxlR/anD0FWSRy/gY9cAMI0tTTDUmYgTiFSR/eVx0nSrJ8m4d6wAbN
-Q1AMW2zrPYJmnFJm+EDG2IpckGE59t2kb6MXoTf2BsdV7Y0Mnk9BpeBRZAf9o9a6iD0xO0grJHqZ
-yCq/axdGt9OYEzPjnO35rDLTGG7ZyhvdBexAke/miYnbYSrToL5c4/DBHuJlT4LISYe0ZawUK/IG
-808ADcLEKUVnnhZYTJDZDCWnMqnbiAFRXzTa+qSbHrGz1ATnElV5qts6bq4cuQzmk6XZWJqbJAr1
-C7OUmJf6VAGdiVFm1NsD0V8ZfbWiRtfx0aidPkIgJLiBBTmVxlVXzsS4PJVWGjBdTCrKuXpSS4lz
-HrgX7tqJpmHh0XVoem3bMlGb4WmdUlkZ1wUO6m96r+QTzpY0va5CnqOuvpqQorUNclREv7E40eG7
-to0fkcOnztfsX8S8iCcsGhJ5KoErLMb0kjtA6w7Mr10cor4xJYqL3JwfcGcyn8oo00Tx7zf4DtR9
-wms4AJoQXhNoMKNKPkEAEtmWfTvh/NA5NjQo3WB+W81BOny7FRrb1CfTgfKoNClO7yCyPaUSP+p4
-TvxM5Ddl2+HRSqDLLfpyA2HO3BqV3Z9svXNWwk+30x21uixku1KD8tV4NyvnYJ501ufpVZM3L1rf
-Vh7coXifjcO0y2FW8y2o1X40WEtRHXmQFhyJPuFatRlNmDgG9jSOLeDZ1CvS4amvN6G2j0AT4RoL
-a/k8VKwx2tnEil/b2jZsMAy5iIcYhB3IRBkDitE69kP2qbIhSWPXd266Ib2WaiD8WYsZxKgMXLYl
-AKgNI6fwoAs7O8wGywiZtrGPx/5ZWZFHWis4f3XgUUpT0u7cR8Qem7Y5TmqO8NIMxi5taiq+xBxD
-lZMVbEeKDXHpKZh0l7w5mUqq3MGA1XClKdm5tQt7kywh9xQH0iCtnu21mg9IadkMwZU05pZOzvyb
-otag28oJ6TYn8vJkVtI4TLRYbQxVJttpcsZLRx+nu6EZqkNRNe1lZNlPwow1oopTdxq60dgVGHK5
-1enFCfEtPgCOVt3abIodFZ35obSoYuMZ8GLok7JtI5ChoOsC6IzcNx2uJvqth3jX9Cg9SxLaZ4vG
-SEIZKSthYInOPumsaN+YQXiTZ2K+wl1V2IA6icdmpRQHbSFewrBj+IxyrFxA9NxOUqAkNRPNfbma
-fSobqAh1qxnnENibbxqAj+aeAWwR1OZVNVe6jsmFCjO1aMMbRg7R5yhfSSzNwv2wmPbmLCxP9Erg
-OfHonHAXKvu6KPorNcqDexHg5s6Z9Hl1p4ENaawG+XWg5LLidbDmlZSsoiVme7I5g6d3bXLVAJ65
-zLjRPFlwXY5BZQ1HYStsM+Cv8NwDAmaqu56B1B25zcaNZ8GKHr3J4dIMWTcPqRVK0jaqwsxPLDdx
-DLJVkjO7sLM0uMVy8Eh9rHUGsREf7Br/i5v3sfgOtABDadSyuxTqBA+sD7bWEnUnHgqD4mJn0e5y
-BLfzzGw3J96n9V+DDO8Wjzi2N30qdH/gPtP5lpkXB4qNcfHHI72AdR/y+dSTfWkC1ONej/X1B6xV
-QhNWMFUuSF+gXWm98mA7XRCHZAPulW1jThdtWlWNj3MB/1mUdqq8QqBvHlugQOBu6yT8ViUQ4bMJ
-zcslHN/usNhN17WhBXc4AYmFtJUNqcZ0FMGoSMUXN1lTd1akkwMkH8bDuKDqsmoQlzFQs72SZ9/K
-ngXafpZUpmGVZMaizUiHXaIuL9lgqXe44p9MoA1kIJQEInXaJveqwLZVKkP0qE6QKkZZ29bBljgz
-7GxOnmUrmqNMcCyKYk63M0C4a7VuWy8rLOborOz5/jSQrUUaNR4p5fDYkwY9h31x05im6eETuCp5
-zcWof0GTqLi6E8CwVAGw1a4fyjn4vtQCPnKdBVsVzTYZwt4zwEp+aqb82rKmh4CSYMBAeXUMDbZW
-doVlU0GopBt4Kr6DwynI7zp3ccYMSlPowYbqBlR0tr4t67XJXov9JV2C7KzmjgzwEj/08JbhLqln
-3VqfDWFwnCzVZPhMas2o2blhl72aRKJeFZI5fkfMH/eFpV6XOcW2iK6PzqTdjjpxHqNRL+xRnJHm
-D1Fst/egL2e3LLoEQXcMyy2F1toGTQZuWVCwrpu453bjyqafpkPbdzzWQdG5ANfIAes9GoeVWte9
-1WcXk2if2a9OG6anBcTYrGB+KPiqotbeFcusf62UhCUOsGAYHmPZHcIBOWPsqaQOcZVcqZDeAXJL
-bkylVRRrLBKcrzQIVfW1PA2VhP3GMP5apQj7Ki21+hCmrFzGeCiOYWkYvs3qEAs1kedWljxIQodD
-hWPLijBUKhVQBD2j+FTn/jiVc3vMJbpxzlB1bxhazPxvihZ7D+fRPtfMbr/VRD5m3xAMgd2IPj+v
-tNezXSV2HnuB2reXkkkyRb5j6JzTbsTxVxrx9ELaE6Dp2ES8JOhVxiZEKRj2bVgTKQyjbNEvuS3x
-qmytim4Qr6MbVS0oEg1J/nAFlSxnS83BCatK4PZ+ykPHiySB4wTy8f0YgNTyRT6uf2GOlHTbinrI
-H5GIkBV0ySOyJS2HM4WqBLmF66s/TT0lBSenzrFH8rmTyNeEc+z4wq6JcxvtZjZksLMaFKtjCdPq
-IdcbA3o6QpO11zTsUNg4O6c4sqnD+I5XhtFwQB8txlE1xVUEkUYHszfO8Z4i+uYgtLykeBxmYbzH
-HDYOx6Cr7LMkDPy0sHYOj3XWGvIxtEVVn9TBmo098zBQIzKfo2eDYuHmcsYCz4NhcQo+5ZT8AO3x
-LWOw0ccfpNj30rFZHDHHkgvSHAzEZDjlQpHW5A5Fk/VHkVXGeJ1oltEfIoK/xS1rlyI/jzMwjy+a
-PkcI8fEYs5hK+3yYDwlJX/OKPmAaEOTAQjx3MZiCamE268Lrs7+Di8yeFri6frYoz2lAzNQJl3Zv
-kWjzo7awrmXCiPkrj4g+eowWM+wOzliyashah7sHyPw47MJbhwcKq5DS6MAIxnG8OvBJLH9uR7rN
-YQQw2mcUREIdaJfNIMiDUJORckDD+ZoaFiYHjLtBxJDFYXy8GSk5XvmcrFEwo+DD9BK1L0o/NqLl
-JWcAxtQ+c4A+mDRgX7YpuQKWvWhN40FHla2fpom1OFuWsiqqG3We5suAQchTg4IGEyDqneY7m9k7
-O9Kl9GVtlbdWKaed0LGWa+E9uLpmPPSzufCD5hAZOsZ4NmEQdTMuLJVpTqDN/SEn8uyCIYYGCb43
-SeoXbGWqwippjpc7SXgz3lSkWGN9D0XLnj+VCsgM17CJj8HHFaxb/Jp68RFgCy4g6Lt9t8A+zxMm
-kkldlThu0PusOzY7bfC5gc1kuKDJemtLRsIoI3cp0fLI3iP20VUCIqN54JFYQFCwCTryZ2W4aJhA
-VNNA4OqdqpyYtSVW225KHAKcEYWmJu2hrUXpsOqlcf6cUqjN0H3JV5P5OKb9JuZZ3Ox6mfSfMdQQ
-7KfbMNfOeHCMW5sxb0Kssg+sxto2ql5dVQWU3q9G6KSMromgpZ4jcDacMkvO4amZGyu/G2osWj4e
-3LD7pAj2jQ9RGOPFJb7a9sB5O/tUqXMcHsK5U81DQqf4PkXMKg+WGBikwcXqGp0bfRKXWzOns3wb
-IRdKX6cj+OxAWP2WTIW6EXpdPI5Ugt/TJ0u7RG0Ue7NXkiPrEZtRslq8xA40lElUBrGyKpHDt3ru
-0oInnSr7S7x9Gvv/wubUQNKdmc05eT3+6CxER8R+4g7UZw8NEKd4RA42AUjZPnG3Ru4qlg/zNlaM
-BeaBcGoN/2JNypcHUh3I1TG91IEDOYxunEtBCFdhp2OazXTEfDVgZh+NweYMU8ZhMH3HWtoT29D4
-lrGjoeD5AVcNS3OkLTK8smSLQRVxXYwSAvyGbSHLW0Il+hI01hPrrtWqxugT35qesMjPT/+l8v2T
-yodsgS72rzNsm7b6j//bUCX83+6eAer8ovb9/N0/5T6dURa2X4EKrEq8Hatr+K+CUO0PrhlJjgwb
-L80pCMh/+Yk16w8MakTgJJZi5lzrUOovuU/X/kAZ1DUHo7KFn8+y/p0km66/0/tM1UY+JMwghLFW
-R61juLd6XwZUfwicMfcSun1W0vcsn2Ol79qdCiGggU3GfAo8iWD2z2ZruUhZjZruCFST53tSFgmP
-mLDHK9o5RuhxrBBeLJ7Ee4Li0VXZWQCAVcRpDLgDNzRYoN33qk5zfLfJuotYnIkd65jPa5Im05mC
-CBAEO0GIJqdWvKieuwg3HlKFYYybGEPOYQ5U+J2zpYibVhND6GHxD19A4mPUK6o2Dj2DDChTJnVp
-HztI+NPJWurxU6uykHAxRmFmCCbLmLc99PNnxYqg65qmXeJ8yhxm3wL3B6Owkp3inh3lkFxxFAjP
-M/oJLLCxSQjjTTk2u0uktyaEtqar+p2+LHg1XeDrWnJPEQ/bG8zR1rlwltTBMhQ43ZdpJdjCPUvy
-rSJKZWFA1Laalnu6UhaNPwJfnHeJqs6Nb49p9KSnxAPykb/Ilk4xMEnPRpZvOlyIpyVPzbulcJi7
-a1qpIoEmRkFvjWLi+4w7A1Z+tm5EAlNHDxB1eafiXvmMmqYu/J3MeZJ6nL3AKUHuc5Ef8435yrPr
-sRh7zDyx1axfICkcIOMwuRK4+ehDvbgWbRvcdh1gvHlI5bMjU/15DX8srjZhydx2ZTuT8JsGdLmu
-JhjNWtAavqiaHZJliUUbEeVeUXxgSMPDWGtlcgXfQf8GFTAAgS4Mshtxh90UR4McTfaVTZSRi14R
-fxh0Malq9Sjs7RS1w1OkV4CpMfOAy4PWFt/Er7TAlh0QTe9Kpzx09IY3YMEHqhGgiqEZNIw3AYeu
-68+5sIqTzhaO1otXEGFRd+NtAkOZIWtuaF8w0XPTF1XHhxA2Ge1SSsnJgc9oJRtWnU74Lwpiau8r
-5MAbA2QYX4O9bt5aNcFRb7ddQ7wORwg4dnPlJrZFrKr4zqDFrnlR/sWg/GIXiJ6OnTAsqMMILQ2K
-7GwBVXe1Zm1RqSUlYNgSe9UhBoi8jC07FZ3fa41d+oodm0+SZGWyS/SRvUQdiWwqPBS3Kjywel8A
-jNddz4xuGcd4QwPP8GPse9qu86XRHk3mcrSJsIX+UbWOZm0STG5wuxGsniuTNJo7VAXnl4Y/7rq0
-wLa7FZjSSwV7puWOUbiQpsyGpQSKRXWLC9LRPgdOzeM5zPBbgb+wxTdSauVa4FFod1ZtpHc2mht8
-njl66Vr62C5YoFgPdc2SjVmsOZIxKrv2pSeq+YyxrSZrOdjy0QEm3m9Q3AvOtTk1dRdTvmbA6yzi
-l7pVicbXkN1bd45LywEVlrAWbpYg+aTVVXdc7JKb2JtHwN9M4f6p84+bPL5ExjDkkqX6eqd9MzlJ
-EKuSueGQzUBvEavzHHMutHNEYR8i9+8P9m68yI0fooxgKuw4DOOJo/x62zayKsXsLtioR/DroYl8
-J0Pc+XmdDd7vj7SOnd5OhP7pUO8mQk5Aoc1iEliIIYK3G1YfDCEI6m3qQKEQgMCV+W3dJGw7Ky0O
-TR/F3hha1cqhteyHBKvH5vevaA1XvxlR/XxBEkGKPDe7F7m+4DcfdAQ5DGnSxOg81/3BUjP8PVZd
-+L8/yt98nTxndRwNKl/q69zv7VEoIaACoMXlG7e0JE1E+LgJlZ1yrUWtuHLsrj7k7dx98N7WceIv
-b44HJEsFQQE4KzfCRu/eXAdUy+GxirzuQ1Jw6SnbPC7u10/nyL1u/We0DZcp0Qff8d+8118Oynjx
-7Xu1rQT9N+Ogtvm5x5lI5VSlZ55ZYLXQ7Q8O9v7Uff8O32Xn2dCEHcwccK+FCisowL4PmOU44FT5
-4IrUPnpf60t5c6bkbUFz2Pph1hvKArzaRW90S8/2pf+8e2r9T6MbfnDavJ/Fm+/f3rsrkyaIjETC
-6xcYeajkHm5Ct/AAOX90pPVbeXsdvD/SuwvTBmXI0OD13Zm+6o3H1n2AdHe1eNanxjV/+t3+tcng
-o8O9MxkYBkORbD3c7L0sW3WneukG+/s5PtC+s/vwu3t/23n/7tYL5c1350wkZdBjWnf0Xrga3K+F
-e/zh3T38/ipfX/S//gyxnP16FGEmSaasR1m2rC48tn1e4X34Tf3+vUh1DfW9eS9s1zVBWVHrXtab
-l9S7/27unh/ujA9O94/ey/oq3hxlwtMOOIijiJtgV0MFekCRPQYf3aHesS/eneBSfXezcJjIiWb9
-yJQ9yqjXeqH71bq0ju1PP8m/POH0jw707kaBFgJzev3U9B2qHLdCDF3nmutI80vP3BRu454a99i7
-8AQff39aaL+/SbF1+/WznPUizdr1ZMeUt0Wd8u9zb3G/By7tSm65JQn80cf6+3uVfL8RC7spluwL
-Wtfg1m+6gqtr2PPQ9ZjaeVCYN6EPH9776GGqvQuU/tPX+e4uYgmtlyDHWz7XLw+FH3uF++14/fzB
-57ne9X53nb27eYxAvBW7Xt/dnX5sH8pzfTRegmv8UCiJ1fN8T7XclXFt3n9w3N8/TuXaWPH2mkhs
-MkZdy3EHP/Kyq/Iy8K0toxnvE1Zz/8fozpxFqvvjo9vXB8d9fUq8uRYzIm2DmnLcbov3zhs35c64
-hMf+0Vnzd8fRMMGCwzGtFY3z6/trUzunQIDjICltNN6j4TscUXjOKfdwYN+019gWdxT8XTiHDz7b
-v7urvTm2+e7eGdfJTBZqfY8+rp+HbEtL0nb2kfYP+j74uWr4H7/cDtrXaPRXyiWaOIy6d//5v/7T
-2611gqZvvgT/uXv+M6l+fs6//8//vivj//g/7S9y089f+VNuEuYfWA01ZhPOT1mJ0+FPuck0/oBZ
-BGgHp5jUmVNyhf5/vUn/w8BTrWMuoP1Eh77zD71Jc/Bb28Zq66b0RSNx8e/oTTby1C83AsHcBd8b
-NjchNVzc9rsTVhORTeQolF5klbhb4MqBDRy7ifCRJcfgPBX95JBrKjLKS9eq6k1AG/aPWA6k8NqV
-SKgGQCV3pkmXyml6hRaqdHcmx5SwS+fZ4GmpmVTkkt8wseyMm/AVfkjh9OAcA7I8VGvWnkmyeddX
-SY1NCczRRu8NKEcZBmU7oCcQ70nrQc/4RkULsKSVvDhTJnIUS9J+Xzqhfk0UPfZKwNIbezIqIBXI
-84tmRnQGTLLbkXvumBBBenSEGPzJJFpT/qRBwkxVjt0KiURagRc5vrIjh1eOJFA6mJKMEnC+ppJP
-xctiXdlImUS6W60wStl3tvM1eGVUirEam418ZVcOCIpMLqhRa28VY+VbJq+syxHCPEUVFP6Bu6lX
-IOaSEB/zQphtj7lqQsycX+mZTp3IU93ThzK80jXTFbQpZg1pw3rlbxYrirN4pXICCsdCsfykdeKy
-DeHD8KI3QiF37aOoM794bf1NVuRnOgtm9ckrCVQs8OBdxpvKKaRhmEEwggfD+Lw25XWarjxRKEN6
-cTeYxrhjMqSsAbTyxhotaOLmQQLteyQew+Kzk4E3MGiBeguXsZ50q31mBPqpaRH8+1ltsE0ZNcaP
-IFK8csWgFtmkoU0AqFfI8LoUjHxlcMdJuLJT4yz5ES3RIRfdDfk1G58zznAGRG4HeLV6RbDSkk4g
-d5yqT07SfLPypEtPYwDg2DNyYgQeJc7Oznmlu+qvpFcjKYNiU70SYOk/zG6jVy6sWBGxgxrxbivM
-Ccc6db4qfLLhFmsiXFltRcxmfRe+TK/c2c6oExi0TFvK1MCXX2ybwdwXkGqjYqZwvkhe9AaTUCgX
-2i2J4vdmdGo66yJjTejZdEofiGfetysJt4sjAqfyR9Mmtxm+u9Oo2T+g7QJzMInG6xlLRzKS9Rx6
-QG59rDn3uN1OrRo8T7a9yRRzx9SC/uS69PHZZRs1sGu3j+Ei2rg4vKGNLmzGcYpI4UTjSit2i6Hr
-5pYmBOdUr0RgG6df7uOFO8PXBHhrPPQivcqU8ZIzHldapa9wYZKTMYx18H4U9TrJtQRD7CTGM5x3
-wMRBnia3SigfJzkV6U6EIIwJYBg/sleucYYuwkljyK0+G085nnrO0RWDzCSw/EZsdEgPU1fH0TbX
-VWpoHXLxZ6RLzIMNL6S5MJa4By4JRq3Ka+VAZEuu83E6lQ9TTpvFpLeDM94yyANl1SM3vqCI0S2j
-zaEwSYayYgVYY9ROsxzgus7URiYENbzczqlsAIWjRsdRAY/VXSiRIMhLo96cnGfsdWJHEZ5wTgEc
-Nr44U2sYPFYQ4RGtYZZRaU0nBkEITYfP/MqLBoFE55QaslQl+sSM3IIqbdSvgGmq+6BNp6/oaTg/
-0z0qXFo9jyuhGrfFdD+TM502PdbUlC+uxpUJ0AeyNdYpzUWIHO9bq+JfxSsGW31FYofQnKG0disq
-u4wDHKohY8gVob3itMtw0sKD9ZOznYDBSDbR7MT1znyFcQuBr4EKVkwTNvSB/lAmK7o7ZdJZXxk/
-md7Gyvf+aXhVcfas44kVAT6GFWYDYvmgwQ0l6rpd2zhMhh3Pqux8qyrEDhEpL7NqVj1ScnKHTTnE
-ktz3T0OUXWlq/hhE2XU1lhdZ2Pw/9s4rR3IkyrIrYoPayF8n3T20SB35Q6Sk1qQZye3MUmZjcxjV
-PR3B9A5H1nejgEKhCpXmVCbeu/dcmEe5uk/Mgbbego1X0VdA1zb9cKPFfWzHRaPnZ7cYplvygnTj
-l4fM/ki8D66KOlqQjeXZVx388VpmjPHggporOvOhidSHKSGyMy2og/rDkF7m+CgeaopaRy1F6DXr
-rhfSpb1Lk248ellpBtRh4WchFwpZAxwItHynSTcgHY3gcTSRL3DhlF4gxwKfOGq+I4IcOtS5jfsX
-KNyNkZLIEkf+o5GQnjrZowxTfsRlH5VfqgZJRw+E/CotPbU322Y8Ln6ibtAPTUfPKs3j6MzfMtV+
-aisjDtC03PUGToV21tsrFSv9fU6dFt1uEmKC+ljVhX5FTsxygYzcusasyJwbxenBdVDlufrAcidw
-iSS84gej934bo3etWxmqL34KKamW9XWJkTAzyXGwWzQjdJuk/OgPIKaniEuP3M7dpSaiwAIl8GOD
-EufgAcPfL2kWLon2A3SJQFLpwg5Bd36X2ObXHpwDOQ+Rd90hbqf/YDl3PQDV67TUx13RgJtSqZsF
-ws3KC6p+GeLyNO3fQ3fIHkZpmz9As2efYiEBnxloy7s9mgP7Hcunc5GU5nT3/D3gKXfVXvJeP9m5
-hn9aGHp3MMrRJeYIyOpFR3vnC9AXt9/pE4Q5PuVlOIxqWAUo2DiesqQdrovnWF8VV4g3ocfN7w03
-rj5Bhi2/dLLDB9V05ZPuSJpf3jR5OK0165GVAyBCkgztL96hQl0h/ybJpNbHTxaggp9yaGcBGnxN
-IbaZcXlljfgReqPxQBW3Au5eAtDz1/jiFRjQB/Oy/CJcWn/wFhdAjNlqx26atVv0kRlpAXHTvF+b
-zPneTgwL4Xls4LdFPjPsseJaiOuYrAgxYdnCZpv3rvYJHeVPF6PQQ+JO0fhRa7vaJMEmKWJtLxOg
-u+mCDnY/D8BDYBPHtbmKQ3TSe7MkfR8x8eJRGQegz1N12VpoqwOYJvq7ibTK73A6igOLnRmO1agT
-VqDG8iPYaUOEvTUP78vEh/QukTxjHuji9qIdAUmmXT6PAEE84wnlYAkCPC5A8vhwhUVUdndDrZvI
-wqcGpobVtd915jraRfU8ZPxOOQ8HiVjtUeJsu2Y3pJfhLCYHQXaqTJpVi9ntBDKA77mQaXGJuCWK
-ICuaScfO45nNXEuTCbPPCewBQh7HP5Wns2FC2QICHR89ivdCOMZVBzyQwrZkWgYlk9LzQ2SOC8wM
-hVZYJNGVokwfC3P54fTJl4UzYSDt8aqQxQW6YO7ZAuzi0sqHNsSEEn2zoYiHmuNfu/ryYCVsp3QP
-XaFQ30leA0eDXEznu0JWzQYHGJ5+NzoEhq4kpDUFoWDTdszZZh40mTG//yfUPeetP9SA2xFzaYM6
-AAllK1N364YO+iomLxsYeXFFPcPb5x3uLJtVPujj6qEHnIYCjGwt1U9WWLeJj7A/BsIIKWg3sK1H
-1986LZ82bAnNrWg1VwjRkNvKJfCntJoCzbRrRa26hEyag/G4Aa/XZp+6HDTDI7kt4EIzLwN97NYk
-FU6WB+Xa4qTKaZ9oW1pDJQBKgdq4qtE2DTZJGw59GxCbZf0zS9CFt162r1oQrGU9is9jXApsmQJ2
-8gMg0fWQYOG+u/DNuiS3einbz1IqwhxBJ2o/iangZsxVuQgOE4leH9oE2X3YYq37OY/yk5O54pK5
-175v/cV9AG/jO9/TfLTNa+Qp42fbTptjL+vhGz4ctz3kjBbtbJgB9wlrzZMJBe8O9U8nkJBHd4gR
-l4iPuam1K/ibebK3PSytwUKnKlrhBN54C64S/AeJZSU1EM/rzCP88J6gRXAQzifEPLCxiUov/BuU
-idNyHJJZlyD19JbwKuEwV9WVBErgmw190Q5bS+Oovjv2bkLnGNR3rR3KwbQ+aihpjxY9+N0aDqDd
-ZSja9hU5SxDwzazpb42KW3CRT14ZiHpwu+9oHWsyYJukDzPL6VWAOMBq96Y29R2bs6W+J5RN4C4v
-rR79Va7Plz6qaZqhyDVz+qsGOEaQBjarrYmwao/cXhFy5FiNvGvEAiRx7GcWspgEqn7N3i3R+ixB
-wVmXFZ9NOaGVtUkWB9EEzYU3lamHhwHgehCRooOLMcIDtLMACUETAl0C1wbFls0LaCTl6gh4lwkT
-ICHUrAGzJrKl5IbitnfJF16lv2uZxs5t3Gs1723k1geymk1OF3huWnEovLl6Z9P6f9cLk/yLHjY8
-NvbPPe/aI2mbBiiiiCOnsmuL046psqNq8ssoZU99bUSjP0Ai0ogS4NKzUJcG8W+aJIxJJaCEdOBI
-90PDbYIHrwfuJOJ3jehpmfrVRamNAHWN6clrq6/kJUowkFJ74rht/RoJz0nva76n5DHPc8giQiP9
-OutLQtTj616VpDrXBh9KFj8sbY2JoP1QzBbS/kZcefpA+TJvfbRLWhZmph7wCEk+SCYFlrE6AAFo
-d8pA84TKzdzJYnxXUSIMF7Mf4D3MTjC2vbvDqIS3oYwfG1Tau6TBgq11/sh+b+ryx9kvr70yuiKY
-CxGrN0xsHmOiHgLCT7Fs2b+QQfjePS+onEkq8PE24KHjrI+iw8Jv4KNMLswIKgtO6Xp8ZF0wQBbg
-wLuM4OdphKtOGEcEKUvOhyQ2qg+I1pY2HBMcLhyU2r6+zJ5nwhmFiBnaYHW8A8tC5V3k1hL/nIXT
-5wGhPgXxZrRwDxpEkwQOpgA2j3KMXbPSXfPJ8xNnwMETT98V/7reoXqx4ncYwBHj9lHlHQVMUvfQ
-uiugTHpGcdH5kl2j55XGHsNHnDwMBdbWgJzDMbm2lXCTz+kA7inV0gtowxFfY5J/4mF55gcpRFqG
-7kSHc0esZfLe0H081X1fGp/bpGF4kCkpkpNjmtnLStmld5YibSsiI/tYDrBQQ8ShTIi8BSs81wPh
-Q5Ot6gLmCDg43ti49rc4H1ACpYuHIQFCzT7mIDYFTSkHQKd9Zf9AUqMhinPhUL3X/WSYbjXO4JdK
-uR2hB2l6JFwTrXyZrWESz1Wz/y0mvuBaIjh6W8R2C4i9Sv7v/3klX/vP/+u/6okGJHbo57rl2Pzt
-uWj4X/I1SOxIomzd0g0so+6qUfv/9cT/0B3TJCvC9g2oD6BmX9QT9f+Ah+vAcPf5gS44y7+qJ76u
-JpI4bdi4n931zwEJsS1/m9nAL69JSOkyrVsCMFjpl3aZSzsEUmc/tLnEEpl7yVDB9iHd55+i9Kua
-9EuT97Z5so7vrFV34aL8cMRzA/pFmd8ytdxWA1RgUGUP1DzzDwaH4VDaHQg7RE7O+9wqE9KFmFWH
-gwnWXawBU+1H4myr5u/6f//8GKomZGH6Bvd2U483C84ryNxggLZsUchNGr4rd9YgKE3IheYov+29
-Txhwk6sXNeiHf7o4L+/C2od70dv5Z1xc5w6NTZNMlk1DUCf83eE8iZlmpl0XDJQWl6MvDWIO3x5o
-bbptB8KGyVtlWaZDBZn//uJul1WVQVSoiBnqx+ijnDOLU4ThA7ZJ7VEc/36wVX251uzQYsAZeTXY
-YJuwFwYIZDAx9auGGMA7VQktlG6tznSpNs2x9QbS72MYh80x5u/1Br+4LiOyHSR4XJcgAfNnNhjz
-R28Q8phXRXGRZVh///rSXAr5tuBDhMmibxrFhU022Dgzg7u18EItoZBKlWQEyebZf//IvJWCwFSB
-kMY3N+9G6gK56IcMIcts42u2p3EkiRH24iU7lv4vNTvrjUTIyoWBjdHpVmwuDCW4W8QkLe7AOWVB
-VCc9Sr12UoCQvN78OSAf148t0pt/RNH/4zywaWo8j0vYCEOCVnBBybx+gNiNjMK0BOOqqh93E765
-O3PWy6Cr0uSjgj5+48lEu//rx4hsGD2eYO/PP2w+Bykkmjcq/jte05modL5y0pRQ3wn2Tm8PdeIN
-pf1iO2hKmPChFLy+QHbUo5DATnZRv7B1HhfzOLvSuxi7KAtVFWv/JKX8jzf0xJfOwoG2i7kMrvJ2
-vFaJGC8CXDFil91LU+O4X8ZO/W7x6Fe8fWknZi+PA5Slcw9pdG0BQLbbmpDzIzbLOATv7I4gMXij
-yeFfjAJTwTEdNvb+th+s09BB+MtsAgi+RTmne9ckP6jbt0c5edtcnWASBzudKTZfW4+sqiMvnVEK
-ZxIBmq9ivrAhHXPkdzy9PTNFnnorkI/bSN4N1lmW8lfzlk6WUkfBbH0Bh/dyWB7LmiQ9t6kAtnAi
-P/OgTo0G/8LzIWfAvrY2ozVVn7kWIXooBtr4qko769Bz4r/Up6m5XtQynrm6Ey8GMzJfMy1VxnQ2
-op1cmPAoNVwcSjYNhMBEN2UY10Z0Tn134qkxBLHxHpJ/G2Xn69s4NbaRkBsB61giQQ7pD4yhyGuP
-6k8ade/ffkVO3EVuom2Y7uouMPzNKxJNxlQRhIhNjlMHdkfdb39UnQ16OiIu0N4V0k7+fnZkxead
-R7DKTtFeZ88Xy9tSe0Rgwj/eZTKNyJzjHLZiE6EVaXs7ohI0TYYK377MU/fUYFu4bjLpa69E9pdj
-JkMGI4oUlZ3oiyuTQuO+KMFv57Z5Tumx/kmbTQnL93+PtGlou41OcorLDfXpB1GJp7L9ifl6KPa0
-soxuNwBSeQdIqTL2mZLOuZfnxNLjCyYvkvMcLI3P/fYXNxcKklckvQH4cFoIe54d7WHBTBa2Tt/u
-VzMBlPU0+vz23T05qLtOM3weOEc2T7QrfUWoNF7LXnFTU7/IP5az+zFxqw6PcWsdFFzkM2Ou93F7
-n1kImEHXA8efShdvqfvMgiRVVi19KYCtfjMVn+coyX7UpVV+dUod3rimd5fwB8ozk8+fT5m3aGXZ
-UVHl6LKdDHQix+CTQzofxWQ8Yjaed0XSxdAY2vF28bRo30dtf0uc6pmV8M9ZaH19+XIc1kLkFJut
-BVQKOG0TITXQEqz79VC/z6zMfHz7gf45K1iCvQRiZ5A//OP6K168RVIQ/JSasOfYYCdfyWySSYiF
-o64OdjTVX4fRic8owv68oQzjm8wGLmuis530Evo8iU69dVcO1BowGFXOgw8vEh9KbqcHx8LLI6oY
-+GzURFl7Zno4Nfrzrt5YxfNIpzbXq1FZQpKJL7ppsJUIrcGfB48kUQEMudQgtSZaVEj6LWVe1WrG
-r7fv95/Tk8Waoq+rJgsZh8fX47sAadk2M2mYxK3A4LS+5Y2tjiauy8Nfj4S9yySeYh2Qg/zrkThL
-mETysGoSeieqsFo8LBVY+qEzudKZkzM39s+v1OI9WiFS7Nso6m9mQwJB82waaKi7pBb8ZEHBNp/l
-wG0jYz8MVX2My7l9ahSUairQ9qe3L3a9ba/nCEZ38biyGReQ0DaL2zC6APV7Rk/w6FwbjavvSDww
-//qTXEdhf8pGWPfR6L++pXwhXkoGBztGpflAnew7GJHa5b+4FM9cv3rhmgTvvh6kh2OKhIFBXLWA
-DxirCMc1CZLJmYntxJfv8WYgIFwD7dg0vh4HVplTkglKwIOObsFv3ezoG5jzOl9MVx4V7b/eolre
-apDxeEB4b8Xmze8pA9bwLcio0uhIF9Ir7pxYqj1KBPvh7Vt46l30XIdUQDA5zDabSysJQeb8hfJC
-CNVf6hnRlBQXytCcVXEJlUG/aq3BeXS6rHmCL3VO9X1ijmFbxy3F0QGw0NvMMU6RS7oIbMajlUC2
-a3EGP4DzgX2oT6L7YJqag3XdTtsPBLfO3ZmLX//0zaeAXm+ttFmWR51tMzrOwgYmK4QTg8r/Ew8j
-BZZv8jEGI6KdHlVUnr+LtYms1bfv+ompjYF9+Er4VCkObl7cgX56G0sOBbNB41bjF15KD0aAIcb8
-/dtDIV/cXOWaqgMqln3PWoNzrO2nCFGU728EAN0v+ExbGsPklxg+xYx0NlvzmAirQsBnGgrglDfE
-w8HLCyjVveUj7HPm3HgSg1dXATKCejmkZuv9quZmroLMURPtf7Rbl0W8nmZkmZBZJXV4/a4BJGKX
-gljsdvOYFlEgdIVsZ5nkDCF7pJGjdXRC9iVn22zXy8T5DY4ro5BuNKW48PqxvXWVKUSIWcwh4xE5
-009ESWDs6HpOoJhaJTXwlA5/LM2D6VvrpsUP3ap6APd+r6/9tWnJg7LvIaEao2l5GONsDflt7Kmb
-pJxScW0IPW53nQllfVVTLcfOJb0gKDQgJ6ApdDPeoy9p3hkZvZSdnLv4/UwvGyEkl/l9GGzLZ/op
-yD1cRlIqCBtziRCjPTMGFR2vr3acFT6JQ7YLWB0015VezKg/bH+obha3QoJExti0h8GGd0pjCXBw
-MAISSaw8XXOHB8enWgitNRmR+4RTq430j+O6LcLeHocrfXAggguOCFpAFJh6HDiEDcEkx5aECa+o
-zB35GrQxhJnX33XANfAEjaFsDiyw0RBgC4UvgDXW1ndmWU2PhZCCyLfRz3EfIXpoQpXWTR0oOp2g
-dX0ijeAADo9JEWl6YM7mcJ02bP3Z21vMI21JxFlbWGYTkpZhgn+lXfShpI9uUoBuGhKAtP5LV4vh
-s41sDVnjmGZT6EWrQtJKIuNHJhPlhFLSh957zoRHE9EG+ceQ5rrpkLk1gL+cJueDdA3UQCTvYcUi
-3AJKKj0gNkdYfvM+TARW0nAyqmmGKjL3xGw7a8u/ovwEgqDtnJi0wkV7SuocPgZ2UtLdSSJaiG8f
-YheOVVm7A3T5Zhn37FkBhdVkeXz2gAdlIakxpM54ohhHZJUNklm7aL3HsrWTHhy31n6NGoru5JX3
-y12+JrKSKY+0ZGcq4UD48CP/Q+n3+G0t6djIohY6uih9tfbam9GJkijsK4J/U9W2gQ86ec2rmfsP
-UBMlDnR3Gn8ga2sBy8Ec/7qUIvnA28BtQHCASiLTpy+ODziOJLreN1eClG1e5gQQIHxIJJn3yJW6
-/puKLF39xixokZvnOopuX1fr5Rq+rJowIiekOMqqN/QvpR3N3/qmq2JiVJqkgfpGVui7BshIfqyc
-pV8pgz3HHah4OTYCI6q7oxIIJz8ZCF+1sC7cqLhqy2meLqTTpNa1NBG4I12YO5KLFK7gL7Gu0oek
-Eqh0kROgS4XUQmzp2OneZ4XP39jbsiSncnH1YrnQqLbpRLt04t4Ss+PeD1llfGibBBUJhMY6uYgc
-2D1hN05md0tcIr7uGI96vifsO6kfhoqgkZA02vbnMA2lFerZUnB60bzR+tXyFpHgVzjR/HVAHhBR
-sUzmNU0Cve4uQ9rsX6e20X+b+ffqPpqp6NxHTUHrFZKyNTRM69GaCl05bpm9H4lKBOxMj7q4zJgB
-BTGOGO+ObVWkt9OwTNjvS3act8pxi4HAF9tWQTa2+mdtljLa+dSNaZ/zgrcQqJZoONKQpb9OPDgC
-MS1vtfvBgU69xzhMmpc3pBOuM5UieB0zDdDNooNADLtlHqJPeKsFQeRubTy0TdOiQeqlOmbAHIbA
-ElpyI0viig4woZEgEwHapk8tENPkzgeosfA/Zl6zJxlJWJD9cjqnirwsdT9GkGi+wVizrL2npy4e
-19Ku6oAw3VG7GbLZ/R3B+kBUnPZrNnYOie1Ax2oSj+RYp/21O+QFoneXZ38YfVP9thEFk2ldQicM
-8zkaeh5IJDJSEY3sh77IJkWBrCPrMpjYvIA4JNrT5MUpHfmK1gjUdNGKaW2aWSNLYvLfmYSqRztT
-LhZguY5eDehDfUpCp5F6CgJ/aKGTF6aEqVT6JW16eh+gGZeifBKgE5gbsnZkdzLUXXGcZlMO4UDf
-/nOlUeWDYcQlBVHv6N/FsPqUUgI1LrtoIVPeiQwNvbqf/SJlcv7sxiq+dSMzuSertDyYhZ/fGwVE
-6ku3HFsVVL3FMxLFbC6HvkYOGZRgFoc7UaIpuazsOTNR8RFnTAFjnvXDZKpGBoCURtDXToXVtzFd
-pAQGzLEiXMjARDhJmEV92Zr5MgdTV/hpYDqlM+8LC7jCXanLEq3GyAJKSH3qib1rD8uV6mWeX4iJ
-TDpEaTgcd32kxQVd6xS17VCQABsS/m5F+7rUcP13xZQWwK1ryzuOnkvCbE8AJD8kJ2bgkjw+IvQq
-1Dcx1K0GNhbfK6p7mv5Ne0lpw36vknQQe5tse95Ge1lozBNlZO56h8GCwcdqjZgwxQgFToTE0LmK
-nBAN/QhTA4Qibim6h3co39hnNHqLOi13yUtm9bWXX1GmGbfk/xSCQzW/Dg0NgiuD76K7ob1e3Pd9
-TCQpTvwmJ3ahZRmTk140e9Zha97NcwTcG9Fr87nOdPOx9Ga2GYmW9u+UhSQJKK2Did6yUnijaRxb
-YzDao/Wb3ofA14UkmBRXpJEAJj2rSIAC9hWBF+6kE4xsF/rONtrp0ZZ9kR8kaLN8JxMzFYEmOfbz
-scvpBneAblDJUvHvxBbJtwy2IWRHPizoC2VBW6OIva7aM3U52cFmakfURHtzPLIGZ48L7FBImYPr
-3gsH9FrYyJV2UDqN/zXn86RJggz5E2EhHSaLWPaALodWPYAKJGY48YbphtAUGqhVkyIZK73IeVCo
-Jm9AJeZf1KjEdzRODiltpO098fYilE0dr7qaUJKxVjpjmwPuM4nrThdtJt0INbgF37et75TR+Xfu
-FKPA55hefO2aUnG/hq7/gSJRb/ejZwoSsKVbBZMAvBsUOj9mN+WF/E10X/exasYKdXtnQ+q1oh7Y
-UzGUKzBE2kDYtPgHOFikjqrho0EhGfVGkLW6vCUsJSEuG/wIWs0I7lQXD8oNSzYR841lWOnlWKa9
-DJs5UQpAVQr30Jfw9fZN4bYf+sWz5EWDwhUgbM98vxsbDtl30yISdl6IGftAjdQo0TXmZJI4ZVy1
-bMMS4lT1qkFtpy1Zt+xMBLqQmoBgEI/GaVNGOZBabjoJuITTsFeQxKAB7rL2UZMAZ1a08JuAzi6n
-Fa1H4kc6TsfWc7EXRFzUdot3S7egLdd0aS57CSrHuqBd1H3pPWbusIoQuoSaZhbWwUNwvACd6HQ/
-LCQbBtYMmX3TiLyF2Zzn6bBfPGDM1BVH/tjaR8Mj6kzzV0LuvAS2sdi/Y4Xucq9KcH93poXVhT14
-SlxxPCcFGBeDuG6Umwm6SW2eEj3Uloo/XVYWQh8miCk9Cpa+j4jm/YUIazYduHCS2row5i6z8UoM
-7HLqNkVI6EZy8kHPgEoEOtBFnxJYn23AFqz8WM+yYOsprEW7JjvJdUIsVe27iNz4BU8LuInArlZZ
-FWtFvByG3qyacAIBdEPygt3sESw3qOzcTuiBZwOq37XGMqxcEq/1rjw/9X6xv+OLk5HJfnzQ/eaD
-RhGHDGFDFw/KQlS20wm8eI9HwiXSzxX977yUvr3TUoEiKBtIvQm6fiasSM+T5Xc2Z/5VNRkg+7x6
-st7lvVxul7FQn+bGaWZmL6288JYyRkE04N8K3NLP0ABFpneATuSal9KI/euphvS5c9Ew/YYd0yTB
-AhRzChx44/hBQN1nAasmBwR0RXESaD61R/b9DmShmC3oTwdQoWTKy1N0ayIiKJSwoKwLWM4QWlWi
-QGZK7vZK4fZ6/k2NuxFWa7pK5aXC8JRXLfJdyqi8YhG/fE8eQuKCyJmwSzQOGMF6Re0GudJnFSil
-6bwKS2Y9eV1Tw0li0uPP1hCS70xjiVfFLBGd+24a0V2qDDWtiB1eaJiAaIMzbdV/VeM4fdf7joFj
-H+zGoctSXstcY8VhI2mrD2qBT/dgeTF5lLWf6EithxkFrDsiQ60qjHShAJQ3MOMlruB00Ktf3Srs
-U4XPD6QSyElFUmXFjGU+i5LLPrrPEGR/1KeKk0sNCp0jg/AzjKwgWkh9KCaux4rB3wUVyRYUElr1
-K9PX+1g7UzLs+1hHsaYAQNpBZnccdNhXJY9oiBeD3T5I8B35guqXHtv8SZpHfNJlXSo9vqwynxGs
-ZcBJxmrn33SlKsUNDhouh32ufwOWiv+9jxSusrQgD2LP1nr9DgflyINVLt5hjuoGam1jGL9dkjO/
-v1132FR2bFQTpNPg1YTQhenW39TkHQJKhsYSJV+bzRkJ7Gg2XugxyeDUz+HiIVXiQGbDwJuKptu9
-PfhzbfhFZeef0ddSrg2iH9fmprLjkpfbdkifyW60NWZDssM4DJnsi71PbQOwpB1t8KxDHe8L7khY
-Zd58rKBM7U0VQ2WZne6zZvEOnfldazntrd+13rUXPYRKb12HanpFMWNukz1J2FgiS7+a9sCxfqdI
-9G3eby3Vd52gwk7qXbXPEezuupK82whU55e3f9GmEvXPjVo5OThNV4Xa5gcBqjbYOGWUvksOyYjO
-FZY2VgPagH3t1mcq35tS1PNolDR5IaijAo5Zb8+Ly28UKXe5Af9yzhzvu52CF9tFqlSILCdn+h7l
-tXmmdHvqNRRoXSjuuasQbVNKJZC1J6DOY4PZVuaDC4xwN0aGt48HLACz1EkRJR4TvKt7Rnjy58AU
-FC3su7yBjL9Vvc2u5hSigf0zVmQyUE6db2c0RdcT8vRDN7UDtMu2fUecUHymuLgp6XKTX4+8eaRe
-TQ6MXtEE7ORMcmcNPNW/YyKY7sHEpmvw38Ji2xpO2nws7c6UlzLp0Rq//WJt2gz//AoUjs7quReY
-qV8/agjvNRtuvsCCNXSFJpv3q/z+8u1R/nyhuFbfQlZhuojC9M3jZejU8lu+J0sZw5VjsIqj973y
-WqXeC8sUZ96mP28tzU1eI9S+gp65tanbMgE7frsmsC3816/auCZq5O14FLkik0MDaYOBkjXLGcYQ
-097f5uWsT1YwpwE9Ml0m1s3VejZVo1Lj8+kGjq/DFPXBaDFR4Zq8+Pv7yl7aQMyGUgyFx+un1/h5
-103EEu4iNNyXRRYbIExUTGFBaJyfu1yIu38xInhFHZLU6q7f3FoDkmLLCbci1lxTPyJCeoHeZmjL
-HTyXD100e2cUF6deUJQkNHVW8S7Z868vUSGQwS8QMxV3I8u6vzQ9rkLRy+rM93hyINR20Chtm6e2
-6S6SZ0bikOReLrhj2LyRF2pORBn+/f2jW2sgIkQUZmwhPUp4w0KuNBqHMXFWAKG/XGCI7/Y4eOuH
-HrfjmebJnysHYDGEOMgJ2T7QIX59/9yaAursra+IIf1HVS2tRa5VLLT9WJTwqt6+vE2r5nk6Idpm
-tQDYwmZOfT0aQY3FiJCKV5/0g28phihKZDnHogU2f1+xP2KPJj+9PeiJOZzVygBsxgRu0SB+PegS
-eYvl1AS7e2mSHHjEEckVc7Qjhu0AKt7DOmPZR9ua4RO+PfL6fb3eJ9j4YejVIOVgbrM3cziV0Trx
-Wr70Phq9J9PIQVu2oyEvuoXKWWwl1f7tAU+8pOuMhlKNtiOPdP1BL1bmXvmDYydUP0trTaRXlnMY
-Sek985KeeIrCBCDl0nf2kF9vNoX+HMWrbWMVauTGxHYZ+v/Rgu2JJ3yYox9EXjvLLjHGzD9zfSdH
-Zh2ySQZmNRKbDWHkEc09II4mxk7qX3qAnPgE8yi9nxEGfWdlwe+IX1tGZybSE18Jw+nseGj1ccWb
-B9nRoRDDyLhl3kxX5P7KvUvs+aOPC+3MhHbiEhFZWci5mMxg/m1Wh7bQzUURH7GraZERmKFZx8kh
-DWJHTLv52BAS9yU3/HPamxMX+NwZR02JDtxcszBfvjhOU42+L/lGUp5dqHeYy8mkiI5YLJczH8WJ
-d9QngdJHY4QI0NoqF7JuKLtx4QIjkmdCfyCZWrUEyfztl7DqTXS6phjNkYVs3hRdUphLW1RxcFHH
-+1zl1V4kmTyzPfzzWhw2RwZ/MXkiINjMniP0B8rJfrWzRUcSslE5sFqTc+CqE6Nw9qGzzgqOa8XZ
-PBwqg3LikANydaaTct9lwFbCutMgOPz1TWNeNujlo3PlTdh82Ja0CVNwUNAsSsfQtJrN6mT6+vYg
-f06KZJCy2nhruBsrwuZqcNMAoqXdRXHQya+YO9N5TyeBqwOIY+5zKJ/z09tDnriBCL0ozCG/YtJ4
-RqC9mBbTykWDVLCXtizOyl3iNYdmnqbw7VFOXBgZiOx8CDqxXXs7ikKTH3P8R1/iE9VSF4m4QUrX
-k9pBiZMo4nPSxNPjcSxxn40A23VNmvooBA0rkoA0eqFa0cUC7RNOwD3pzPXjOHXWj7cv8eSNXEXd
-LDIoHv4oB5TEYVmrMnFOqjTEgBOHRT0sZ2b5E6N4+BJ1x0GjTtD35qui9ErZemJ9GQs9evAmghj6
-LJ/PeHnW9+z14owgw2ElwUdELq6/mSEiNxliXDZQ7xD6H5JiIp8+k+o9/ibINsoT+DrjqQ0xapbH
-t2/jiSfHbgsp+Zrsa4itrEqmetq2yLWIP7LjL6vc48sy+nZ/KGrKeQRgKSAybw/557KCOIcHxnEA
-wwget9cTfKJMPNnuRHK5VS1HZzSNr4UGgORGMykZPES1tAwqsquV9u2BTz1M114DFpnssQRsPndc
-QOxf6wHRRTJgknbI/u2bRv31NpbLw4SHNwvwFwv968urm0mMvjdSzi+86ki/Ek0EUkDBp1AUpXPm
-BT316qxLM9Iu7igC89ejjSxqlTcjBYG3nh4z1167OqlmA28Q2W3VxfOtQ6PsSANl/vD3t1NwG9Fa
-ebw+zrqQv5jKRCpbet8O4aogLh6MUuA8ng33zOp56gUVYOa5Qj5C1tHXo9CMazD88ahKd8X7VJr2
-1ZqQqc653V5MmnsOgPnn9oN5mYO8oJ60Gps2L8my9MC8RpQ5Tpk478zZRtXkudlaUUpSvT/zSm7B
-tSw6DEelYd2C8PetXC6d5jzKEgsa7xJJtesQ74zk+vhTceEQdFXtx5yMGl1aHaleVd386CYEuzuQ
-Ark881tO3OlVPsaRiBvN8r55nosZW26zIBKc0bITqHZs5HzIzHoKRVyW4dsvz1ZEtl64j7gRc8Lz
-krEVkZUq7yjOUQTPjCgG4FaWUUYnCeoOCQf4gwBUAlEActsQUXdNInf72Wg5y+1yacJ8oWLgVD+M
-ZjEm8sY0J0Eswox1jZ8fkUvE8erMh7Z1nT7/YBtnOHt9Hand1kw0lX4Suzr4Bp8vutynctBv1VRY
-R6Ti1UXkxascq+2PCVwBzBZaC+ggnoVBhPjojme+itO/BhsaEeou68b2vcncoSDpGsFftCyov1Ck
-pM9uGdsJyL8Z7nl7tUtdSTpFRUtPtiDPTZOkChIuqv+dNPefO/Pit1ivP9EEqXaGBnhltIF9wj5Z
-wCI3zx0oT72evC+YUKlWMelsnEH1DDxQ2IwSD20S2J3f/wIak9/KXo+vZM/p7+039MRqwTbN5ZNk
-UUYtv/73F9Ob7S56jVkHIasDGaPTCBkUc6nO3LsT0w2jrI5XTlo8ys1HN6GxLKaRIwgykvYpymIn
-bFsz/obD+dwu4+QFcZxb6fWA8rcI4TXynLhY9jJdI/Iw6mgYddByzuxlTo4CXpHZjKrKnwLcWESN
-iT8NdVOceodqmuwx5BAHbunt53PqznkssTwjfE6UNV4/n45zg4fHk4FAHx7wFmShqKV4bJLYev9v
-hnIo0q57dtwor4cq+6lHk8NDaqahuSc/CX1J7nVy1W+r7OO/GAzjFsU9du+kYb0ezC5x8biwYaCz
-NMlhHAccRShgQhAO5eHtoU49K3Z/rK24Ftk8bF6+lYDk9ojEOIw45WOup8SuefIcev7UhwsxQKyF
-JxaY7e62KqRLy5L3rkJB+//YO7MsOZGsW0/lToBcRg+vjuPu0TeKkBTxwlKXgNEYvQGzuWO5E7sf
-ntVIoazS0v/8v1UtSemOYxh2ztn722I3EpGFZCjX7zN6X4dmTIr9f7+sv1sZtBGxoDkgV/Hx/PgL
-2gOExMpjUgjUEknxWonnTqJnoGTIfnGzfr42GjGYBbZ0d5okbw012iFyGYxmtYMG3B1JpX1QAXmw
-w+qdRJdPv7iwv/m0APE+ZqGQEwpejx8vTI+2ga2742yiDe9yE4w+oWSC82eO633SZskvjrI/rw+P
-3S90t8MJtb715vNyXGWOaSgkJX6bvjTmijzHtvTjf79df/sp2Ed4jKnjfkKbG8bkzdBssK82afEJ
-QEl3CyCl+MUb829+u+2ARZOEuoO395u1ziBgTZsAMVc9LdO9SY40AUu1bC+JR/Q+WG1S/vnbl8US
-xK6Ca/Y8QPvxZtleecYtUwcsDnVAZX3NSRf97fKNUgNS1bahM3B92yaxjDGBIjVRORJrie0yAeRX
-o9KJOrzcw05wz37xO/58t9jX0diHlKucW9++FluYUe4yMe9byna89leZ3IhR2/q3d3ffcfHn4otj
-d6f0/vHXCyrDnIKQfKHMHkinKqpva0PeOrSffzCu/6Pr/acL8pBb+TxOVN/WVn3/+Ekpcl9jFG2z
-M9slf6mU0cTFkP2q8//zQZ+PoezlPBGiicKp8ePH+EAt2sAHPwL80iZEsg6kfaUXXdg309iUG/cr
-NIpYtG4zHyWquPA+SejpkyHY/nIa93fXvG0hFP7sJkz+fvwyxD05OSCvZreQDa8A9dnZtZO71e+e
-BXi14BplYbJBejgpf/wYsTDKdLZuofJ1sA9t/a22RXo6P2f/ixX6ASt0bgr952y8m0/E4h071ffq
-/3wlIG8sv+eV077c3rr/4Au54g+QIMxFeavzzqK//29eefAHPYtN10CPhE719q/+xRfy+TNuKA8+
-mA/hb5yjf+XjOX8Ij4Y9s0/Bhsfd/h2+EEc4Fsb3DTGBe+ts4OKoyuPvb5v5d2fvBEgcPBsCPLsS
-R9AO5qT93MNpGQ8m6lRiVspu/DbpdvkoR4wQ5PxaA66U1rxoLD1HpAKb75iizXtyH5dTreWVAQ77
-g4m74kvaBcV9Aef5dhgtGCxzOl0gKCZqrFXZ9JA5dmnBzeTgv4Y59huijhCcJpP5ujje9Bg2NOZm
-WdUf5rDODs0gcewBayNaPEH5lfFywfvtiKPNE/bsWEWvd1h9+oMe+847CD8tyHIee/+DVQ+djGof
-GPE45sULA8PQ3E2VXE+EdaqvgS343m3jv+TG4O95rz2qMETM5qwAhbeDwnM/5SHxoHDclYdzhVYm
-Gi2tTePKaX326BzZtdonPeR3jU3ic5GOwZHiyrgiRRUSIjjnG4VH/0VYhFBfEGdKQe4MreF9PCMj
-obfbkUBeFel63qKE29p+cRjYE81XzE9VP1nPI+ndu4KMJhxMyYwWTUvNLxZoYGyoSMlvz51ZXaPH
-ttdYlCMSOIkefleE9qbuo18cp6qan4Sh06+q2C6QpTJWkNas9p0eAqTuzgylLV9GOG5d3qKPDp31
-SusAlV06uGCPuTpG7lTuyNUKyqk9DDzQl4L/lZtW8a6yCXuLg9xMvyY2TqxoAWS0xH2TEtCMEQBb
-mjAcfakb4syIbrNfAOIld+Q1L3AOaSne82plC5tSiWLfL3sYDiN+DW5kyvSgJAGIRtWHxUX/L9Hm
-oNuGPnU/hEhu4xIEw+XiuFDe0bj1BJ6a6iEZU++LxreBHMtpUU9CSR/66ktulHc0s4mTDgJlnih2
-JYFzjqguTNMJ74LSzt6Plj8c1Rykz4ufA74a0gJe6dqZfuTC2x4pkcfkAnGhfduZrrr28sZ/yGSX
-XdTW/I1EWMnES8sPczDKmIFEA7O9Cl+a1vGeE23iAnEru33ukZFueWPlh5xowOwisBfuUNJqL54d
-s772wNa+hvMSGidRekxo+mEL5iaguoJG7QQ3Z/I1VNfFRP/vyE8anW9wp1zN3ZxIRt4TODh+tBHW
-32V5CS4sdUq5RiMnkCwuwE1GqGc8BLtb6jcDDYSUJVLPMkbRGKSXwoW8sxt6R0rghoEkDceZgmPg
-bf4vMZr9fCWaakvSFhvTTnvuGnNa6g5eYMAknsP5CL4fBF5yxuFpOcCPZUlkgBMzfY/GAmqeI108
-Z3NVjyQqKyuWNelFO8C0abyWluRRbuDudetcopyUZyBfazrzQ1PZxO4pRIH1Gd5HdWk+U3gHRyIC
-yuO6upjhiiAyvKHnr7i5G8uNC+ifEYH6jAvszuhAge/ggQ45DEUv+dM9cwbVmTnYZBOASFZfkt4z
-eoRL2E6O/aqGensYzvhCqtTgyFuD5xLFu5s+6nrzyAV+3mskr8p+UTpgpyjOfMTU4jE9oISFF5zM
-AYY9vD/gFMVUpF+DM2TRPQMX1zN8EUglSNqcf6QuNtNAefIgsA53Xq4exLAGsH+zj0YZXiq7XR6L
-1Z8Osulf6zRpP5HhGxLGjsg+smfvNJYuMvXJbZPi0Qpb/12XSUTpxdZwC4Laeeys8OB7C8a8Jv+z
-RZ69E8ZSfOHkSIwUEKVjmDpN/XFchNZRVwmUyoXfLutJyZ7o945ZxHVhZBuQm80iP1ZDXyTTvgzC
-VZO2OK5eVAtVpvuEJjpyfS8Ps31IMKc6JbO7w1if+je51wwW7p919uNeLX4Q9Uv4agW55R2HWUz1
-F/5c4HgoHOe9sPGLpJiRTrorDyY5kCTKNMSgsWkD7GkLlUZZ5hb4W8ulLXC72MO1m7JivCCbBGnN
-fmvgLzWb5mCQ7hm2BvqsHNjGesGAfHzVa9uEJ0KvsQQUbevPtzCiDsIeT9kERXeowzmatPmN3PbI
-8+ZDjXBoPvau07jHESuOf1zlp06t7xH8zpLvZdjLRWI55Z1PgkF9mc5BS8hqYz2b2iyqqOYbeMd2
-HsJmN2nQlRdWYySRObiM6AvlXWtvyNXOnqzymRxxyOXLoNUBDylPlN3fhetcFBEyVSKVWtmNV4nR
-pukRm30fraUEYFQndjtiLEUjdFee4z9B9gnrLghlIY6byfmyrJzZhOpN9ENcegOMZRC+96lDaP3o
-It6J27yr7Hgpfa+IzGagne7Qv466LFseVWus3zpsRUdU7dmzQfjTejmNY+8dAYeX157Q7bdW8Int
-OGrvc1+MmX2RZDgnb1BBEq1uN3523wZ9kN8qX5FBAUq+EVGtKqKy86qbHtuhnO2L1Ouw7eSyrXO2
-db9ZcJYs5mdjgNp3LMp8s/8VqwBokk7sv7rMxGEtmvSxh8W8PmgcdkBm3akhrztrk1NayfBzV88J
-D2/XdFLsu6ZNu1OaQ0C5btDF74itXmJHJHbkh8CfV91u2u0SSNOpqBuvN2I6BnaPnxnb9VVAjAax
-XrWfOrjMjInAJK6DOXtKlBn+1X6vZt9J+ve8XPwt0dwz51szp8Udt1TXzT41Ko5mjfZnsrRXXK38
-xH0yPI922Ft7T05HPLIkTtgd8aA72s5Dttd2l+v7tOpy4Lgws66mbpgqXqsL5jCa/k0SrfBaJ6BM
-VXhQCsgPMPQR820xN54BxXfowutmrUFojEDHuz2+n5lYABxIIyZEiNODKngxJS4o/GIammslvfwh
-nLiweO5dCMaFsjF5i7ZIX9pJtmC7Jltk4IVXPBx87AI4o01LLAND294mo1UMx3DphbqesU7JZztp
-jfYyHHR+gkMZ3GAbMhMiG5qx3A8BZtWLsEw4NqlZyCfhTe6XltzgMSocjhRxjaEd03ibh06Mk7+J
-vdo0gWtNJI2YKeEwJhUVh9KFcwkK1QlACtos/6jtKkC+LRQPWAZEl7b0ODg+Zp+6uRP1Uj5NnpXK
-o0vLS53oZzNDTgMsshecLPK9lHqPRc48YiNJvMtiYnpBu8AtvHgiP6HbIzLF2dk1ZSNiQnGAoHNT
-YtVO2JwRAl6ROsMe0p/EGFz6ahSnbma3Mz21pNdsUMurTDkPH7tMLJd9jtduz4oej7hbvgSuvGhw
-zc+Sl4ryFha+e0hs7yiG6p3FPmNM9Dml+5AO1vssy792mjwQYewr37oWS3Ap8ybfdb2P464uj76c
-XokAumgrvR/n8pOn+g9B7X1YnP6d7cLsNlZlRrYLZrkU5a6X1RIh0ImMBJ3HhKViUq+cux5B/F+j
-pjoE45ehy1+zxf/Sm8tlhx/wwu0CNmBjtgmsaMyuvVhUAy57glIXNC3gX92F4kq35OE+uYwfFKql
-SKj+kdmv5e6HqfxYVDmrAi4i2jdWZ4HDaLf64eTtV5PsH+xbQ+Z6D9nKrCpaR4/4bI169tAofKZP
-wly8+9Zgge1rfuPsAsYC/6bSg7YjgwJAPiPI/FzJdHkn/Wz4cxohzVy6jbSIkegNRExd1n7wllB/
-aZzebaNsJlmchhDP3k5z3dlJTwVBwyDjC3EKTXzqkV67vN4Pgz1/cEjP9uNsgtW+L815vR645hwq
-ejFbl0u4GPLUIjnT+OEZJKC5h1509In/9kx52a9uSya0s9JWoHUzDti/OEMfFt4fxJaVefrJUlkS
-cJds6qy2Tav0xshMgUXIW7KFuURIarmTCPFVFjZygA5idPY8yLK4GOumM67NymS+1s4o/v5qqf1v
-P+G7fgLjdFSL9NT+c0fhfgMV/7//+30b4V//6p+g4uCPTQJGT99FQ44emW7BP4PPnD881CR0EpBA
-IC3f4oL/2UiwrD9QC1DZI5ZmmsfI+btGgvcHytiQPwRTw19AVnlOp0u/qfu/GgR/xdP9+/9/z8h1
-z63+7xsJwHHPDTdgTLiGOF/92EhA7cGqgnCxN5RP1oSrW3Y1adbVg2F1ltqVhgdy3JsVGBMFn2E3
-D+Nc7PwhoBM9+60VGXoG51GCtuAPfU3Csm/lXRJPjqD0C8gemOMaJ+sF1msCsmSgAKV5Sw+MvSZr
-5EvQ+UMSiarsXjpyuswIa+8I2sAdHdy/diXuXCM1r1Ldj2yRibOVIPBdhjjVjZDsG/2KsTX0+wc7
-t0i8wLPeNTsQ/WKOqpk8tF3HKOxD6PGg7eFrwZipvI+rGIRAR2AmJ0mky9fBmpsHzEHVp8UdHLgB
-0H/4El3ObyDTslmjIvfwCWs03ztS7eko54Exak7kPpfWEYiCrL0jn23RGdFqXVUqczd3k4suz576
-PvKMNf+0ZA1nZ1y/KRyQbO6z40hVRTpWtYafiJpAG2ZVGWT8spx5nXFg616TYuF4JpSxnFJ/gasS
-pCVkdL5r/7GmmiB8uQ/9iyCti3eJrfsnoby82wNIsW6cDfJKLoCBAqzDjY3Ltvc/q2wIPvLCSpZT
-mPrjnUsEFXuKV4RmvEifiDit65tU5/771TeJcRgrC5829CqBebzWr77TrO+dau3n3Yjb/V63Sr3W
-oWof82nhzLaSruRE1I7VsO6kW9B0CQsAxQYH9698oisuDDt3n0uyYfLDlKxTQKQXZg9CKYZSxq2w
-88/+OrffFMR/MIJpPg4W9SSAAJIzZMbhEFtIFll5sRCJZ6jxiRh018e7GLp6X1GhvTetyukvchkO
-l0Xipy/+4sirlj7Ipw5/K6eHxO9bZFz+8OjV9fqpZooImmQZjR1iouk2b5bqVqJFJNsqaBMCAXyS
-2sks8JSNpclO4J7USiPTMgP/c+Zilo/UIJMEcEJbGiy+ILgWosJ3L811vUsKF06L6Vkfq0B5r9sw
-NQVkM3bXoraLK0SRDfSR0oUcAcflcWm0xjVXNTQtLI4ODzQm2xRWRmXxXOSD+46Gck6oZhFSNa4c
-jvbwAPuDs6bhI0VQdwq8fn4wuyZk7oaEP0loB0XsVlQTYuoyB05ipoIjfYPp0cjhHkclxeJrL3RH
-WhaADBQRnYaPPPqrja6klktycJTZ3cBX1F/w5fbJDsCBvBo6BmExr0G9HHCQ0udDBe3UcanWlYRA
-R1HVj261nSLlBDV3TXP3USTp+LoGHMIj0WgbjATmcGKWUmrDHZJgFca6EMPXOsBucHDSbr1pRm7i
-SXhpIQ+umHA2Jrj0OUi3bkaDZ1ns69lX9QM8lBAfN2Dzr2O2UjcxIHI+2dwiAjpI6DBxgkvqNbMx
-OQfoMXCjrtEGkBrbIhOFDAmWUoeOkU5RpqW7L4xQpFFdtzQKQ+SIL4YK+1fcz+W1nmT9Gcc8FpDR
-48QKAAAdEvwXo3bjVPre8ICR3X+H0G0ldtu2uitpDpii/QBxdYy9ml4f+ZBVZMChQVdU2O6LzAno
-2CMuN7p48RKCfnzDAeeTCas9eTBennPpVuQ4rQM+4kxq733lluK+degmxcjrOno2s8wpgtbyA1MS
-g618DPo/u7Ssxl1VTjqPG9ub9koS2oXve8K1PzVG9gWTcScOjmUgiFnauSCGqTX6iDKibiP6M4u/
-x2I7/ymwnrRQUrrWp5TKnMekDdIldnOlvs4ctt5R5YJ/0n03PCZVRb09ulYoI7Y61gT9VPp5KXSW
-C64VA5fR52x4NA4kFQjpPx6Or9H+MGOWHNhCWkH80ghiBv/4LD82mG9h7yDzv9ROjv8dugy2Xdzu
-z9QzBuOjwqRaEaNu3wUKssE+XVwy4AjKYlVTedBEFWFK363IMMMCTmrn9ZR2nMh2m9jVi8D6Fuk+
-hbDC92EwPu9TJ5s/pzjsXwJPte9A72wu68TESzy5QWfEwmeP3lXuZA47YxyaD/2Q0Vyj5qOP2xdr
-iP7P4MlmO56cy9ok3+uYLjZru5TVbTjPUwfoySaHa7ZcQvNI+8Ay0SRE1NGNr7k/9Dq/5mXrvdpN
-ElgxNfgCb8gKHeOAIs4qLmW9mM8hHRDnal3VGp5YH569N0NYEXumGlyYWhaELWLuiITqydzZsrKK
-cH3oeeE+p0JSP1MN5+NFIdytMh7IDtgNLNs9QnCv2KuGRzsi0wxLuBp8vNpE9xEXtda6PaWNP7fI
-qorWeWTwXxRHxgW5cUKaTmRlzUYwv0vnIXlM2JyIr0EAp+8syFfmlrxavTJFIPRpGRTJKmXVpvIg
-8r53dnCzvJOFSF1FYgkpx9whWTtgRX1CU7M2DYumP3al46Js+Tg2ds+gQC8eGdzY3MCflBYw8pWE
-G1Sm2je8OHfU5O7mvvW6vTV04K/pdM993IW6q6G9zBa8HG9rSpmGX7ncLlgwuwVgiRnP5NeNO9ce
-+PuZl1dfmnxtjAiIqcpiWzYUsCBIlne+P83jZaCKcTzmgncUjZcuOSEomcvd3ErxNNe0nxy4S59U
-Ywp9RBnXZbvEyTTzY70hSJdBlJ91NydP9JWTr9AXw3RHOp6GvTJDe4rscGmvVN7aL10J5QERR+i8
-tDnVJ6ZFMzyCfylyngfaR6c5nZNHBq3NtIdm06MIdwuM/ebaYn8vC/hlhbVxQoq5Dpx9kjBm2G0q
-5fte05jZqcZOLpUBroYWX85TnLewDiK7X8QzsV7L55KgMEUwrV97UYlgtQOAMKv7WjoIFZVGkbgz
-rT4jpcuuvHe8yTjMQYLw77PEddeoDRJOVFhEGo3RS6inWZaNx3nHMylN+1ISOV4MIXYHW7TMrhDr
-YyFnjh97VW97MQg9/67MkumjU4/pOwfUfnXdGrPPTKMAWdZbHQtFOS7dbY6DA6lMUA4Mlo4eRZxh
-RHmWUwqvtzdWlo6TLeplkowFdrVErI/uk7f3MWUYbsZ+kdugM3Lfmvd2MWdQygw2DAiHHhtMDkeF
-M5yf6mgIFihKndUSlWSEZs2LtFsJTGymxN5Dtireeb0cxiPtEUkIQQ3laQ+zAIEY9DLFYYDkKwhQ
-2mK7L5mmQBnmReFB98mqZxSfNcnsGqYVoppqMX9TzIAM3XNd099kGgJm5RtRSDJldRU6S74XGq+R
-GZT90VSTPHxXOP2jLPm+DPlJrPnXx2D/oeDB0WRu487vxpk1sF2Rg/DZg6s7DSFTqyldjRjJmkHB
-24vb1oHYlLV+EydzMh9aYYYMiIbfZHMSmbFd7r+/x5uxv9MIPWCnIIS9Q0Q0u353hHLNY+nDKmOT
-pMlnE9NeAeNxoULE//1neCs62D7dw9KDaA8N00+SDm+1YarhW93j78rjwS6DPV0q9Ysfe7tlP1Z8
-P37KG5loR4MsZ1Cc7wOaL5cu/YRYpON0gGJm7//7BVmbCOXNZ6Gb85iKoxhHJPpGpKISP8nyxcn3
-Fb0+nNszjzw7ZldYlzkjj1eMs6t5gd9TvCbWhLkM+h0YD1WZx4Ix200jUXjs4KQbzFlkcTJXy/g2
-Vqb92igiMncGZzF3z74Q3qcje9Hvrn6O1Jt1ksMIknfK7R+XpQQDl2oZyr1lodFwg1zFRp6bF//9
-V/rptm+fskHLASbgqKei/2Hx98rWWROQSNY4Fo8XqacHdPTub+qF0JggtKLM5/TiQmd4s7TJkkgW
-mwDBPSJnOqSZAO2jTXmaEzH/pi1y+yhCJXiUBfNk8OQ/XhCnZyFEzty17Yf0y8q4+cl10/bQSnem
-lU4gIMyY/8n14VNDT0N+AJ//5vq6lR84RWe9l2gDyDRyGrb72kf8aupfLIufniD++4iVkJXhAcCG
-/UZ84ZYZAyq4M3u92sNdk6kqUlNgkrpqT794WH9eG6i72JY4c26q5LchBYKxwdKMAWA0vapj2Jd/
-dgwnfrHvbAvsh6cUs/UmphUeB/Btjfx4v3rbLAYHJigL0F+eR2q2/Wo42XVg1P3NFtZ3A6Kz+1V4
-y99d2vef+mbZwz1TwsmSfI+MZT2BSGJi30/WX+Kn/yhe2x7Rt9eGUwUVDwpeWnBv1qLLJBNSI28W
-EJP5PWhLihpoUFHlNCQVZpunLAfJeXKyIfn0u881/nQ8k2KznQLlfrN7zGvfGMa8zRaYLe7hHhXX
-xUAJ/D/4FFIWiJ/ioabA/PHmubBkTIhwAGnBSB1s9sWDuRWT//1Tfn5Ds0bAKaBOBvfPePHNG1r5
-KEWoWiUDCk6y+81O6HOG8hnCjXiDwTip3L5eMuKyASmJmg26BVsBNLGwIKLCvPzFN9oW5dsby2Xb
-m1gQid5ba/KUIgppV4cvtLbOMeXs+lC7ebmXXQNfPRyn8Bcr6W+ekk27tSWqoZtGR/TjD50NjmNM
-vpYgaAHrDoNJ7opvqOAEuYT6XDbB9cQcsPrFw/nzZoNkjPYx6nCeT/Mtb2UwcF+azOH2KV2mg1vL
-lZjNEX8X/VrL+8ViOh+03vyqsA/w8GyvCMFO+uNFhrVY/BCu9F75o3dLFRHu+rI33rWu8PeMQwhw
-tXJzopxV1nwDQiS8ZeUrY29Twx4HuB4HelXJ8bz6/nfi8N3Egbu7EUT+87zhOwXj9zOHf/y7f0sX
-Lexpm+vX2t5QLs/pPyYOnvkHznReItv65XYF3Nt/Thz8PzagD8LbLbIQ5yebyD+ViyYzDMyvIaJF
-MtPZYszfGTh4Z13y9yuMGgKWCDkMfBLZJdabXdGeUwaIUgXRMPUD8dCIESisRstki6QkfSCltXWf
-XLmFnBrnwFNvxIJ0EdAii8xgbceHjJAKRsDnpFR7gKLNI0KAau858HZLZNDLceW4E9xZXUU/JrXm
-AbINQazVZl2LzMK5KcAPFw8jSbgcE5qRyLeMISszchx362uVD31+N0Ky/FqBBFH7IgmZ/yP2a28d
-vflueVl3L4nZIPFbp2FC/6/GqxFiH0S5cBHqVlKmyCMQ8oCs1zGx/tzEPSvDRFE/ml1hVkczT2pN
-QLdByj2s9A5mRQm6rUjz61BjXIuLPi3rYFea+CovaINYxg5QKNG/Bsj2OrK08OS19utyYz0OHJk5
-FzPtgJKyBIfSmdqM8oFsuduysedwv7RwR2NmH2sbwS+qlj3CxHY4mAPZ1FFPl72CUXVOOQ7Ambac
-RIUFZg9ckS2ZhLh2gUaRwfuVQbqw86XLJQwYm9crnbkwqfxotuvFurOmBPlgLYKVzZjSt79nq17W
-Y6M7W7wuble670dQxc1GDsxCrE9179yTID5Y90QTwDYWWYlWUiFDIqQ69Prh0k8m+VwOnflptMr6
-Q1L4GNk3EGO5W9GY7Og8OseikuQd44+z48zXZOyloXb2em6qd7aN6LUtq9hfQy7ZyoLCoaZPsiYa
-u8X9RLJ83t5nY6Xv/QrvUlXp6WlO7Ka/zag6F1oBNbAdw+4UjMohrPK7duhFR9RXTYa0jVSdcBbO
-aSirCJ8T8ZL3uXerl2UIj0Sv6fGAUqMKMWCV63i/rkZCj7AYy3mGTDQt1j6FdYmAoPLs/uCNeRWT
-g1x+6lzRvuT1QgpXu4iOtrqtAiNeRkDlTWj2cI3YkhU5kLIRZNQKERM7rJ7g18E+yQuimQ/8LLBQ
-eVhm51NYtOEhgWua7RuFhugbTd6FnFwyCMRpDCYmavvJ1WT38jvmWk6xQrw3EETQ2X7jJoxd1qSt
-lpthJkq4uOS/HyT+HkH0+mHRSM7wok70vrnVR2dYPvpuP0frUrSPDADlheoXeiks05NKFSQJtB4D
-ePach1D1cwK5txkIhRN+TqyIIXxSUmmb0KF050TeWsOcvUfCw5AG1ujJpmF66AnevNno4aeSvvMX
-TXpEPTUuAxsviUMVLPehW5MxrhAXxdbqV6+yzsi8sqVNRQfJLLtXRG2+cG3TyUoUn8gmYR/spNnn
-Bv1ZuyzpTaukuLT8Xt9PPUNApl83hkiBPWrgkcFYLLSy3O5xgtCI7w1+JdJUApB3RAQtt1jIgmsf
-d2w852uyaaRp/sm1g7XM29b4sIbYenZ0yMYy9tFI33eTuV4bZVE8oYfpXwJ0ttDVSxbmzmqwP/YN
-TWqEB+J6NluPVqM5+8WOHRREKeqryuJxdLvbNB3Mh8pVwJ8b1IXf6OgpJ1ISiRkkFw/JMhkDqj2Q
-VJqquM4NE61VaabkdasU9CEEJM/Y0YeanXvPK417s+u7S/q94qLtA3yz68r8B5WftvLYN4rlaaL3
-WhJxzlyD5Wpl3QH3n31qhgF4Od4svrX0jSUyjCBNLucSg2KULEVDB4sjPB35CuEUQ08HF1xMF72U
-11Vp0u1rF784FOGcGVHKtllGxDcjmSNsj3IoCEAFQyJtD104dQcnnOzikQmxMeE5ZnFiPwPynrhs
-XbsudOrpkDbMLB5UaH9bPXRWbR3sRUaPdB7b6lZrXqESgWDD9h754Fq74iK3KU0M6LbCNcqPsgi/
-zqhsqMr6xoNBX9Bchik5m2WsGUgSkW5MRX9QyTCGUSpNNR4n0QAaMQixvlgND9YNwGjjiGKbyY66
-WAktqWK9omyCUtDcukuo0Jdp2S6Hjlr2lSgukgxc6F+QL6C0Is6d1IXh9PqUjkTBQzfocrYjBvC0
-zWhe8yvXAeP2Quv2jpCZK2x3Orsq3aUMDr5YiDsPtqyOU9N7XoDSSje3RLLI/qITRRncrGnXxKuh
-2eL1OFvBB3tRQYyKHQTxmiSwtvtpZALgBBK0I+M2Jna1PhgOfwsfrb/EJt6xBymLmt4hP/HJ3tD4
-+ccxU0+6zrZXXrG6X4ALL1ezNaXmsavkfYK250URiQxQeTVYGCOUs+plVVvYPdu5cFHIM4Ri4jTQ
-JWxX179xZimdXQUPFsUU+wNaZ8wbdKAzK3tcGwfxroR0t5Moquqy0JdlqQE/B/5rRnN3V636U72q
-xynNHlF2r5di7D+S3sgUltf4ZH8tBUqCpQ+D3eK6p57NfBeM7nVLaDhjQ3IoKm+8MioSdIiRLdSp
-bubZY2sMeADgXNBGVB1ZFKbduhfZ7PgjE73Uu226INuoDQwIYcCvxtTHad+WI+aqrv/saWJGTiax
-IZ9VOVnslaV6WswgQ6yeLNK7mPuaVy6lkQ+YqbOa/jBnhBhR+XTEWnSOXT9aKQ23SyxVYxYjlUPu
-ORWyf6anwMjOybu6fbLaYn4GO4r8Dmpd2B5no1uONqcDutgzge23clH1cuwWNIfQ7vhPy574X+YB
-/UTIu+YT60H4X8px7p8bZ9g4x9oU34Bhe48WMUIy6rCNRLmc7pPc2jfzOlNCeBPK5QVdo9W+41fN
-Ltn+ZTzZmjLHclpeivlHdqH6kLRmuPfs3H9pMnHyCZcg8oYqbaYdF1oo4rJk3odhW8C6zJ5X04YI
-IZCOL9TcGA8qV977ubTci3ENUF8jm4oqgyiNesaRoPT7Oh84NKRlhoLOTTpXPheeqq9KH34tAkwR
-vFdTs4QxaxeKetHNRYXaBLgxXPfRLSVA52TlDl1mc+JVkBWqYEEBOhmT1SsOb1XKUU8r4jgi+BzS
-vBiNjvLRLBB+epWpggOQIp29eiqYbqpSdsGrEkP2wUynMeCrbh1wTPzNckxnTz/ZpAgVO6Gs/Mog
-pi6NlbT0N10njCKNdmJ2l4bGe9/g4bWVXlFO+LwT253hYdYwBlotu54jxNHuVvbbMzN6s6N3EcAy
-WM41GhXyyoUZ6KfOqQJ4f712kOImw1mWuyl0+7NYF8NylRO4sYl4m7OgF6b89FidZb7ZX5Lfs/zX
-I1EivyWDkVdtsymEgcEu4qbvw9y+aP189T53Zz0xk69vQNSdeEh4f0jlDN4Ru027XjabFHmyB+PY
-bPJkO+gRJ26SZYj85ciEj9dD1PpDbZMZsCmc8d2XV4wzrfumtMOr4ayFdptkMRHIIpGmd4daekOF
-WXfFWUVtMNc177iCdNpN66Yh7b0OOWG1ZOmR1Fi02PMmy+YWW3aEePZdq10eubOIm42rep7O0m4c
-Eu6172uCdYSNBPcsAscUjyC8OovD3WqLVGg2zXi2qce9s5C8ysfyzv1LXn6Wmq+N/DScFejdWY3+
-/9k7j+XIkSyL/svsUQYtFrOBCEkyqNUGxqRwaOXQXz8HrGmz6jGbxeynF2WZ2ZnBiADg/vy9e8+F
-kIEyXe83eQWICoaGDdMpuO6M1WU2Hehr7bJfhbvabQD88Vf5TgLN8J786uET4rURvKYNAg5kxDuC
-kTqa6jmV5EHnX/q2IYar2rPFlYh1JQ3Er/AemSIifJSgCPJpDG3ifMs6ZvVQnWTZbalSrflc/0r6
-ky2f6lP7lfp3bLSshqZBmbroWHjStR70EHGkmd80hr7WB7Ja8A+UsJWE73Tw+kOUKqod5L9+A3xX
-ijeGKLuB9qiEMhpMKXNbg9JVuJGqI6c8tL8eBj0mmCGg/sfbsGw2B70ype8qSfHZbCYIwqB+sNAS
-6zC6O2mv5r1r4eiE7R0bkbYZKYa/PRVrXxMGgdNCwQBdBL0Rp9e8ansmeHE+yCqddvHgyS8HnGJg
-EubDltMPxt9Q1v9vdfyj1cGQw6Mb/L+3Ou7r7iMtabd+M/nrl+PXf/7Hf/+bf7U53L8YmGytP5pc
-mGf/Iay0zb9cnN6oGmlVkgFLP+2/uxzWX/o2l9gamIQnb+jtf3Q5/qKlub0ijVqbvj6ku/+DrJIK
-6d+7kwTe4gJlNEDXZGMD0DT5t5mOmLHx2GVXB7mdWkXQ9pwsQjGn5UOLgudFAiX4yBzp/BSFtI4m
-0Q/HWGEKVvSpNYYphkRzPzTNwPl7JklJZ5OC9Woo46eczfiOR2vEZkfAK4UPRsVv7Pr9i7s2MWod
-K0MgIKYShUqJdJ7kyfqjEAmlzlQSLILjwRzXIKHTEFP7DsrEEbyoux3qruaWae+w2TKyUo1GdHuP
-1O49nqJ0RnGZjMgAQg2FXBrWhHaEDO56+r3DOn+W9VA+LISENfvK7FD/LYaCx2A0mhUHpEYmkOwc
-4ukSz5kfx0mo2JqW2C5I3kA9ScBHxcQdXFD/hZAArQGCaEKYYmcyrsCvKV5oNrZxtGwNzdSaZOmn
-aa3pPeiYRCOWOiFrwVZy5cFVVPmpD539ulBISzpLcHL9XLQsybjPh5MmUvUVjPT0ohec5H0TxYyB
-yIEgpDskwSgge9qaT2uWrK3PPElToZTmFfsPbxGX52B8jZVX/mHLrXPfLgy6QZwjlWvdmWyOYbY1
-HkF0N+zSjlW3USXXlvwM5LdLsMaqfm2slPiRR6oep/d2idWwqmL1K8Y6wYmwi0cvUIVYxSknEW/W
-7wsb2+7d6CSx3tyjgBlvJ2WKO1pJ6GbQlhrxZaII4kNuAJtQ7XvzabIW6ygIcks2q291oitPwIFZ
-KWSR1MagvNK04f0R6RNJELU3opyJeYhh0eiYNZslCyhEOKoP+OJuqoYTjE8Ki/M4thJtlZouyd1v
-DYJObnsPece/lnn9q39Ypu8a4cWL4GN1Pvoozj2bVurFlPX8iIp+4bQrK+8enaDuIDKRKTWiJUV+
-4C9U6IwRJOLXImYUf25vKyNaOk++xGytM4OpmHNwUs/aq0kNStop806xg/5gRh5hLURuzEm8X6Fc
-GcD8iabw+0Q6IhjRF9Cnq0S5BtjE7ROqCk6r1iC100DOEy191CNHKTig+JVI9HGLTJyScGPNnFGl
-pTLEWTl/TbbXlAfSAepbt+615z6NAWIqaz9q1DO9ZvscXLcEVqW02906ZOs5SXLnbc42kAuOhfyx
-duHvBlPq0m5AUIRzhHSw5MlB6HebkAk2BMsMPofzBsFmQceEeOtWmey3PP1oyRKNBDrYNMufLbDj
-K2nq6UsZ5uRjEnlxRYtOk35uTymWiUJpbtdsyB8rbKqYPmFtvA5GpUqkRp39BCmuUHCLaquxWxOX
-6MVFUXszTKVN18ScZQw4KDemIEei9YzDScuPGtkOT1WZTVo4mqIYb5bESW9wEblY6oZBcvt72hAS
-SbTe1BJVB7ohJ0v9WK167je6nly6Un018jGuCWHKO8OnG1XbQVNM7iMgJOvK1L1YZYHYWowrt7G3
-84zBfFy5Yx9VQ8SsSKiyj2mJQDLsB2nVBx48ThQN6oCv3szpmOlkRtKzI1hviBrPkwdXrfQhlClZ
-cfxBKXhjsdtdecpoWEFb1bVzGCEBHY0M3Ar3KMUPzZW+fszEmCehRKn92sZLzdzDKA+s0fJCfo+N
-7H12jBvdbNQ3RCHej9rpyCN7xfuReJoHJLJxuwQIpTnex8gr0dkiA0S5q6GGiK0Ce5tikXPpz1rZ
-fkzTJrkVIO8ovr3V+EQ0MDzU5L1tv7flY1YY/WdJUJxxMta22IMhcdNgdiWhHiktan1HsuPQExUa
-c0Smf6k9gyceKYrqVbzbFeIqyqD4w+sX5W5gFbnzFG/Kodl1PCFxb0GickpTUyO2gXY3AVxivdJm
-JFzJkC7XU1vMKg1mTMoOGSO5bylL/5kZEGpOdVkZmzNWd/aF2o1qmE158T4QlkhAaONWBBHm0vgz
-cahw4L4s9UdGN2QmUa2sLnpGIodOE/ZGLlL/cDhbW77RSvtjFEX2SCFL12AwC3mCKPesNZUH6AB1
-wcgRQDfHQwGYamE0mZY/c6sqfypi8AgxW5flIa1/rcv1WiSXDNawgbB6rL61QvJQTYuX59z4ZlFw
-Pi22w/zMd0k3u/0RBJu8L0Yj7oYmkbd2kfRvSU+Lyx/5+j4dopDO89a32vxxLtet8SpckLj2Nw1/
-IsxgMCXCFBX/5exrSTLcaIS5Sb/XRrmGJhazR21JXDX0XCu9pQ1EZ6ZRU6Dci6ZU826EnE2kU5ta
-zt6Li/nZktuUgRr1WReN9WTSmCcfyx4rJ8zqscrCmaN4h6eTFhU9D3110WEoHGEng/uUHUYrTzqt
-bQsbsyfWaOWUXWU6tzEJFu0Nihzn3evL3iYhJ1d+qnYqCz8eTfOCwBdrPfmJj5M+tCpSDlolfmUg
-PGanRLkj2VI7OJTufJ8XwvrOAHWdFVaXo51hCgkFg4jx6Lljn++6uXT7AGUkugM1hlCQuRQmuxWB
-1Z30yhqel5VW58xWx/7Y4dN7r0dDuZ4zYJo7+iBsMKm3DidHdN594sXLjIQ4J8xFGrMVB0vStpG7
-dUYPuM2rLKCUN79cXR9pVmLiOpukdD2bEx3nbfMh3izWFwJHFy7XvkSwM+3GMVlfaR9pDbZbElLJ
-eErQHDlWWwV5Pw48FHquR6Xp9lOQdMrY+E3mzFyscsHCMMbDzYAR7HXwDOPRyg3xYE0EALHit1JF
-xJdlcUjjUP2JWVSOSsqxUMMe76PScO1dN8IkCEwmKLeClE0bjG9WE0a6TnawgoO+rMZgzAGJkSa2
-nXQ0l0ikZkmibWGqRwv3Sht5a+1mgULai+OzDJifCGTiJxW/24uZesU7I/TlPHQ4OALYQU/slt6L
-O431l6qVxW03NOWfzFqNYw0aowts1egsilDdWX2tXIUSDrLh/1ycItsRpgx4aLGdGBOmXJo50kwC
-LANsn+Tb5Lol7wvPHjXgD8O0RUA67a2Gs/5m02ecqVmr5hw7HXFvivU+LtK6duys+yjS3Hwx0L4n
-vjSL/k8uU5p/c2EblJ2kxSKat4Bl+N0g3Q/EWnAnh8QTV6vVzuyffKHX8QC3zVfFPFz1jZt8d8Lu
-Rx4JNNZHXcFw5y9znb5ByEzptdvmFFFo0Ss2GCQeRtwINIrGjvrK7slS4o/Tut2DkZquY1fDEmqj
-asKnkegUGRI/xRDVRkFSM3o1trd+7AYvpAs6fg5F+i6hcaQHM1u1u6TJcZbEEw6sSFM5GO+8uO4R
-OA5LD9CiGWGeNvi3qxNTVBZmS9E659Djz0IBOq4dxgUFEWqkmFYy0RnRjNuYJI+F7OI13oy6PK70
-blt83wwy9DeHpju3VdXz7yn79ck36w6P46CcAS7g0OmYWWyJVpwMdgadvZX4rQymiUy0TSfftqjo
-Kw2DZuSCBhBhXg/kiVV4aHFG2CN/P68ECXeu3vHnbm+Se6yIkfgyuVZUmlhJgCxgcmJPz3o6eUHX
-w+b0TbOj6dR1invD36BmHBeLoLEq216YdBDmP0bS8mvmP6t7mFxBe2YtVNgfjZfEUceLrLSXt4wd
-k97VFtNlYQlQnIH/utOAdl9ddFTsuaLXXegyucIg4CiZSUNxYqHupnG6E46wHwVsDCYbSb6iCray
-6WpcTO8P6RrqQETVXAgC0yvBxLmr1CeNZrPt4/gmxA/syfyOGz77rsYimYLCKexqB6RnOnkbTOro
-MPa+6jqAArllda9EJfO5KobOL3XNsDoalkysJMfS6Q5mG68AzUtPX4/p2uMOJ1EpvesK/DQs7Ban
-uhXJT7Kr7I6hT6vJ5BrthcV2OPLroEMDYFPxip7eCqlI31mhKC0Ts4JavMsbjgmV7Kz5b1Tn//cu
-/tmHwHFLS+F/71081p8fdC0q+W/di7//1b9sodZf6ANI5cDJCaDd20K5/mULVf9yKDERWnDUpIPt
-0if5l0jD2tBTiA7JtmBYYCBq+0f/wvhrCyra/ufYwKDhLP4f+hc6EPz/0cBA96rRQcHp4vBylrnJ
-kv6hyBazUToFuMGgthbgSYZLcmQ+T9POSiUDdA6oR44i2C3L0UWdK2ZFPNl0WC4sKPh9ZGdGjqW0
-+4aJQ9hUotonafLtcvq6qIDkT4z78THg1LFB0Fh0JXLCZAimHyocH9P4qiZWfKm7sg3JyKyvM5qj
-n6mnTR+WWezqxrpdnFE9urZZn1uheU9zKV5BFs7vFtjrx9mp4vutdOfwOiDMFPrwli9Nd1u4uOYF
-rjBPqa70tuywTCcuI/Gy/iJYcqRoczJ9B9C+vXgSFFHfWMY5G1UcS8oy+dOIhYETmhNusC3hW96g
-XQrHKw/TYOe3xpw/6LT1u4DVr6ZfSH2ExtC+ATW0sqYvdegiY7hLqndH66ewN8b3lu2egQenj7DJ
-twVrWBl5ZtQRlpq+0BsHXW5MkIzoW/oJoq06cMry1Drl0S6WCyEjIgSus+wn1QLEkCz5bp6LLTcK
-I0g4OZlHDwnGZ1TnpKEyhxmPWTzUUTGPY2CS8YOpwkaGiRe2DeohdiInTgkkNwyGxJFjV0Pxmbcu
-i7ZQK/XAkbTzjsq8ZJcV68RiGfhVFBgE0laee8aNZ/wd5YWtgyxFI/cOTGyx+Ld8PeEyLhS30Gp2
-dcV+p2p5A2KFPK+OPy2Hj3roi3vTUVlgK9OOOiQ0B2D1ZIPOUadOw1WefWrdn6SiS+ECcgHDcbCE
-eDMn+bJqKwHD8bO5pvs8rvZtbEctLmkz+fFSlAoAG5xc+1ZF+TRk4OAFCbOUEcfUq44Cy4VNcVnm
-WyrOfLPUApdMecYhe27L5LCss7zReMZDvZaHbQwNFjOFG71DaSlDy+zCcnkY0hQrI+eyu6Ggv+bN
-fkNhvHDefMySnllQp5nRmLnXuuIQFqyhSHGrgxPnnLO8Y9+pEQdU5viEyOjjm4O7ZGrdnT7+GWLz
-TrGYC9r3ZvISL+8a6CzfjemPMSUMjLk3dnbai5tVc5izMwWt8pD4zd1ULFinjC4P5/GOOS8+Fg8Y
-yADdxsBqNqDrWNIXRncHKydv2W1vkPI/O50t/WZ7DQLl/KIXgaqDt/jBfesnThMmDhCcZty3mLX3
-qqFSTHnZU9sYGbIJ8QgN5WooFsx3Ztv8FAhtVFe5NdnRC8t76lP3KVHx71IKc8BUmoMGJtxsvlMU
-4UwtrLAkNd1vc4ftumJc9CtqwY+EXxK/lpxqSB/FT1Op6ntVe8W1zTSeYxRNJUe+4HOLaMgFRakc
-SsUNRg8mUmHThlr1n2WzCyUmaGzrrlfFF0/tS2IdSIgMWuFdSvN6zY1vk0pVqOJprjUv8Co5bW2z
-C+49uqJD9aEVSh4MAq74NGf3DKY0YOrFZWvscbSHH4Ehh6rHvY219HPO6pRB0nQLwetutqy3YW5f
-NmED0QfKFe2nh7TlLmN+FumVvFP74k1LTO7P/LpG+RHr1RHyZjQIvQpEDbxl7LU/YpKfJH0+D/Ga
-BbLP7aAslD/sJx/KnJy1QT/ok/PcJu0TfgVqOJG9xxWDwGkGzGQxr12keze4896D7TGlw2UcGJX3
-or0lBLegkM12U7cg8Px0a27PnOd7lSpJ8bfw6cKqfp+RUHCEusp4V7nyaswMpDokKcJd8Riz5NjZ
-3hsooM1EcoMOTSi1FN/4TeJph3WApmMP7+NULh/9IHY6Rik9f2ris8oyqKrDz2L3P4x//LLSPcTa
-TOTIJOZE390Bab+zU26DtevPcfElWRekSN7jNv0zGx6SB+WW/Yh7NjkrHLot8qh1gO9uixt4UoQC
-iqktA6sx7tpYfrbYLHaeXb1ALb/1OGsLo35y7TmgWfKHoW5U03MhVbs9wngr/XaZdoacxqDoxwC+
-18+gu5dsVZ8XTdy0KsEcTnJEH1X5RA+ETpOhXhix/KpTkh8zjIZQTCiMZ08PJ/o/PqxVNVgz0CPp
-VjEiRngSorotZ3EAhiuCQuu/7Cp+nFWGTjW5rWWG+X/yEIaMLfPdKj4yIlXi/pxiFMd/TGs+L/Xd
-Qo77LsZ6QXj80aqus84IrGm4Flnz5XkQSdI1u5pbky+ZgXXZeLrvpYRjI72qfXXqb9Klfk7L5tib
-MScTrgTWRIV7L0VRWXInqPW9HDwMtK3+Mpeyf1GZff7MzYLxX2cuVtBrm9SkZMDeqXu1ER4lag66
-JJ9vWGQ+tbS45LGm3I1aFnG6aHl0TYIJCi+wdTTs0rqwlW8iBrJ4TKbusnhr1y+rKyOYl/44PJhq
-cq5hp8Rd++BytIAB9pklKo2MQRso6ptAE59Z03bciIB6sBaaihF2MR0+o+1ObTmbF9DU4jDJ96R7
-bhcriLf+WrmMmCbNwJ4YF3RoQCySaguvvZWmOHZacdBXsUuSmLHOW+JUR9VOdpbBxJzzeTEiX3T9
-jHJp0sXFg2QxIrWidwhE41VKIA/JheEpOSSBJHnIBvcEdIpejCAxAZ5DwfUjMBdBaygSsqRvU2CB
-vV3s6W4ExpjcqNUnJ/Y3i/zoBjUi3I2rwS5CvNcvNdKNzZZZoy2T+fRuw8Sge4bQQIwokOqbeGl2
-9MEPGhxQuHHAi8wj0dzRYhhnC+VXpRDJYKU70G27hNxzpjmveWGgrFqAbxnXTd8+qO74LjPvrE0K
-yJstk9IIk1rfVVqMr11cWdafrDZu1Y7j8KQd5trZ1zUHXW4Vw/gZvJiFRZwaPLyV9jgO83YSi0pH
-vJfIzTL1hWOiX8j1Vu+LC2JJQqnpTVcS13k9UhBMJ2mgF8xocbkaWPvOncNMpuRI5zAvkGDkyITn
-kdG1wjea1PUOCSX8nnU5SNysxWAOUZqsNZYWRnLsMpveMNku+iM7EpMAxacBop29itTBuQGzVMrl
-YjYOueceaB5pndC2uzsiCT7tFFNMmlPB6pwXxWAfGRcFo5NfiiXZIRJ4NlUtgnZxHZNxOaHSax3Z
-XCO636VcokGzXH8ksfnG9cCvJWfQWj+dQrETWIOdhPFStjet5P531lELuy59bDUbdRnjdUYN0gtH
-t+TBWKRdBGZrhqMOT6TirzcibKmn/IlJj5bu43TeVxaijTqPRj090glCnhXzTgUQQuUjTeMIsagI
-4OWdEarS88tukpbMe3QE9HhjX3bGY03/A9nhErWLcV3X00mb1Uh2K5Aq70hpF22WSc/uIse9TgvM
-AFQlxZxEqoKAZBrNwNDit5iyVqubB4lDWKs4jSf5su/N71h71Q2qJH87pyvKEOg9IrecBDhisszA
-tScALCZ+7ftmuKGaxWxfbEw7qFsHzR4PdMd56FBbGkO3yy1pUdkyxuC8Utr6QencsMyfe+A0Zldf
-MXzTI7dYQiNz4TKmx3xxx1Bjozygrin7V4Q2jXrnLs/jEh/gYvvt2u5QhoMAdKN+WAJDaWZ/1IyX
-TDdQod1qg1f7pfpNUM4BQA49Ez6Bhu/d5jw0vSUzKhbPfZYszML90TVC74v2qDG4CIXrhElKM4w/
-TCnpzakIlHF8pM0a4VJFyoXQYKUXVJBjCLGTVhSURJtFuH0AZMU8lvBxQbw9kevqtVY8lt5r1h6n
-SrmxCvvkQhJThBd5dgTuzMe15lPno/mIyYHMjSbQkeQhMuRFgRfE2bZXajti8swjEsh2u6B7PIXp
-fuA3SkI5v57HwgrXQi9PTe7KUBYftIzeJA+8k8dlZI7dQ8W6P3UMPRQ91LXktiTq4lFr6+UhIbvX
-di6Wl1xLOhizXu3sftnzFBwTJmrS6qajLSzedCGqb+h9zoG5dETbEWFodlwgCxkG9Nolvpf9c1ky
-0PYMxm+qn2vQPDXAOkafPcZGGqkTV18H2pkaYctOs+8wARoa5nITj+UVnBvIQv1eFgkDWmTbCO/F
-EwvLXauqe89OgmJQWhiuph/HeqSrrCezRXtPa2RYLPpM8Q3MIba0JkqX5dGlRQxF8Bzn5X400OYP
-takFOZkeJ4B0/gq2KzfKeU8+CyKzqtytfQdEwwvTqfIC5m7eoe9eupZqptJP2VhEY6L6kk4O41ci
-3JogdaD8jOLeVJz6xhLUNQiH2KFYtvSXNWVSayoM2xaeYS+cKhhiaKox8vCQWZGloAjoV0GsFzJ4
-vaaGh6EYeHmGOZ3nLjtvBLpFjbJ1CovWEWiVblqRXznJ92ijizP/DMrbNKfFXs0qdIbgNRvrvje6
-s+q1vlzqCNPDQ0tbTl3vXbKK4vyjVR8dQewPVyvlPLy21c2UK+ND7ellMFjTYV2sXZeUHCtZ4RBB
-R109H7UMaWYl1uFbmXuWl3qIxloHA++0gAc0ZgtjfokZd1lL/JY77rGn+ldxWnhpGfZg7H8HEWdn
-Ns6OQ7Xa1EqULEp9QowJcnmQvV+wUC+WdH2dQyyoYcwfgQ0cN9vREYtNxiTY9s+2yODq1trc/ilW
-CMejuTVcmUjYIcCXGFzcmJXPSwwHol8zjpBp/x1P7pXI6eOKND+ULXpD7MvcgQkj1atlbp1jn6Qg
-7DFDK9Uh0YZBXOZyaOSd68mZaarSOMqpmdSTCarKcOZdnPbcS1xsimgq8du+GjjUulG7iQmGXPm0
-HQGNouNjAx+yLPT5+nK9am5IusKuYOsG8UTaaxI1HVgv0iX2ZTFwOyeMMVHFIphGR6m7yJFVyzjF
-+GUOxkjcQ9mn3R+bNkGot4SpG+j/XldiFK47I2ZGKdDxT0BTYjvf2TO4P6agzaWsWhSJLTNQJWzH
-KhWRWm0DjcLTn2mAjKcq65YLAAdWyLmpH0sWx2MPbfcyJCXNDUQS4AfzSfmZFxa0oWLMS/aX+72W
-BmP1pWAkbFusQBhzkDzjV7qf+0y8WHyHUQz1jttx5CqvduPnko1gEb0XybSEkqjUf3JlsiFhOvcN
-AfRIQfnAVl+ZT0vuVhHDnoEoRt4/Ujvm8WkznlbhbIIDTrApVKo/tVspvpswbuRcX5+daessOaXz
-rkLda30qzOkRmb/znkIiB/kp+L1USxonLklwD9vpao920rv6pdLU6qSc3dnmRGChdqUG9rr0TkKa
-vcoHQdPHhWp4V2feJtms2x64NA3ynA3wJpcEIfd9ql+tOduDdL30PEEjviZ4iy95aY96Zz8atlGf
-kmawkSyDxXF1jmQ5yvW82rKbeZrVgzll6gGNfIPYevqk1dXdY2uYYC0p21uvAFKvFXI7khDCqfSK
-vass7cO0qqUJDm17T33XH6W0+Ytdy+vRJ4qmKkPCIhdetfZGxCmT8izyJXmRZIn66mhQsm8/Ujat
-u59G6V4nhUx3zrDKA5IGMMxW3uNl6amjt5/5yz5313K41GUtr3OuLtVBivGirZK7xhzlAXkVaLhi
-PLqd86XqDa87qXDWc7QxJgNQeFUl8wPhbb9s0C7WDT92cqf4Ij2oWxIc0u5vQLzBMJ4GJAZH0Mx3
-agwc+u9PCsP4HHcdpDrThBHcel/SSrKzaBJQ6EWsw0Mv1QMAb154+27rseAL6QiOxA7RAArt3EjO
-PS/cNbfThGCe6e1pSqnvEVfFl7zlbde25CA9GatBgaJo1Kzri8VAfN80ygPeUj6YwV3ULiUozoJI
-N6aMFzVVvlRhwGtxEDwRUvOlwtyGGe8U+xozSyCFx/3C2fItq9T735vp9w1A1/1QkATUWUqPsJuL
-e+GZfOEoiKeYN/775mosrlFeAqH//YLMhFc1Ny+ApMJyvZLFwbE4kdM8zFWOpaapxRcQqumhzxmt
-SOxXB2nYFIPO7F3BQmoid6PvFmsqdlwPWC+zXxNdzDxvgL0/cnmKzHs3YrWNft8mXfIvQm9e6lnw
-NjfgPjrSipjRybuaGvHy++b6OJvgftoW1o+Nbm/y/iUDy1dziV2kUfwQlKMn1t9qJxBNhWLavpmN
-x759f5Nrnlyjua3aivo5/spznhYT2SvHh4RLOGJ5FQImC9CDL9QlXL2FnwAu+bnTkk+F+XYADYw1
-0XSmqNtufrelW57xwHM/KV+GFz9LqNGho3bTjhKN8xudQR/O1nOtbT1alx+mVuatO1RfhOVBHqMG
-DJN4LQ6YW/q/f7yZWif8AZgdt0+JUIpXgE970L3xw+x5USXjzpKFzSOOQ2Sjx7R9MLl8VrfB8qMy
-RD1WmDgicIEVu4SK89FbTzn0Df/vl2PJ+X1X3Tx4V3gSb5RkafdVywP1+4XUslEPstiu4/YJ65Ww
-A3Jfcfg4Y3Uy5VjcT6luhFU/K2ciA9xr1+rdvTJ36NCYdh5lOyV3v3fn1K7zH5f26WutGcpZCtW7
-EiM/f5q4MwRQkb8vtZnknt8M/RDhmFoUZnesPb9PlOhYcf4eUZQLr5DIFA1Gzl3sDcoDRyY6EZlk
-NNl5rfuouTXwyLQD+L5diqnddGsi55O5GCVfGZI5d0P6bnc63XSrikFwCeNx8IR1iHPRPPY4WQIv
-1bRTBnIrzJS8uZr1QX31zIylbThsbfa+pRAV3SYmTpVszxZk3wH8UYIeJw4RFZ41Avyqd7IV92Pe
-cqpXFjB2KO96Kr8d6ei0qRLrBzJ2sOLnOi6r8W2Xxrlx5vupl99QALUIJ1HkSscLtWQLjm8AozXj
-cIxX/jHy+s6cugO3yLkfGuU5WT2I0fNy6vMMfBwGWI6jHXD5orgdBhLbGn7hddM30oy3AYPc3m7l
-R20qVwNVL7rQgzk07/YgbnEECD8tc87QX0V859FoyyZlJ8f5ZTDMbyYMHVvvByvYrYFm462wrE/I
-WedcKMfKwHWjT5cZWgDxPdXGaDcOnToOYW33b3NT0KdtrZrluL20tUepWN0Nor9rm/TTiSc9Uhog
-fBapIHtcdEdCUAKAOfRmtZd5qB86AHsRh5fVU3eJW99VruMbk/GU2PbRGtwX066v8MV4dxguF1bf
-qhsDTJHwy+IBpLwxfbVTc8jBH+AZzjHDKY0JtnJ5hrTP0yi8fWe1HV+v/tx5DvMs65qS6MPE2Zcl
-Un/2KuN7SM3D5MWnUer36WTuFKOIYuI/ELmicoc/v4Hncti+ga017a5qM2bnWfu01LnCAQW3aRZZ
-RcuUHP5ZZx4pzt6hNBNgZkYxFJlzbWn3FjKHEJnRHGWdA7fYXHCdJs/4VF5nAhXCBVg6tS4Fcpe3
-YUpfDJECKlUrPVU24ww1h3coVK7IVDQc1Ks+ctNWC4cW0LFqw0cfk/q5k83r1MKpHtYxixrFK3YO
-imYOdxYoP1ap0JtwdWk1CIYlxwVCHxu5gyFCK5+XBzm8a7EbWg2fRo9TJ8TZxRwC3f3JK2ZUhAmh
-TQ0PE7rAYn4qKLjfYTRnRwVhS2hZvD2ybcr9L6MaqRC0u8mlsz+640VVCiRJ3bhCK83xPeMBPiJg
-zfdebTQsospdp0jO2WaK6l9C8GauBJmrNR/bqfpi4lOctNhYQmKl9R2WIGVnWnZ61tcBEmOlyJdR
-ayHi4oK+rTEFhWOmmNsPMPaTLfOffFI1Vk3X5RzVKTi5Gyu/cYwxf0371DlljJESGlDezsb1Qp2T
-qWxbFWEO3NgF78hGZmppCTY8x3hGcSDDqaNuTScXFpsB5XDTCurwWCFu4Pmz6FjFhQHmDmEGum4u
-hiW095mEKiq13IR3X7RtOCdz+8my2gWguYtjIRMj4x7O1PfaaovFt5tSnC2BYdFP+rTcic5mEY25
-QD7mNfS7lt1c9+Ts4GpZnOfMI7lgTlzrVBiAoTRzbBrfxeHlE5cKnG4YS9y52sKoSFDAoaHAdpIS
-VW2j8PYrNh/ygWbUdUZcX6Q1GCTurJ6fDZ6KGR/D/WA24moeCuS8TlN+IM3JNzYv2HBVga+GQuW1
-cdv5S2cgf2zqOUdSUjauvw2tfcv6L/bOY7lyJL3C76I9JoAEMgEstMH1hr4cuUGUhfceT68PnJFU
-vEWRKq3VE9HTEd2sJFya/z/nOyOSoKGzeSGLmEgaPWcnqrcuwRXgwyk2WDbYJtPsD9i5wmFh57MD
-BIuu7yNW4DPR6/6XhBbK18RgoxcUGlrJJBXuGe8Q+7hROVeWYB3R5tJ9oCpq8NOzW/5wjCHfBVFk
-Pj5veVEyshnOS5fQHZe4lcemVWxwCxTAnrQHHd/JNM6IZZ63rSC5T87sONdW0rBWJknUbtB3UCvF
-7j1vlkewKjSWTArbtHtogLYIwVL/Ku64bA8J8fgjMARzc9KI6yTgQUOgtO2I2u0AoUy1yLwdMgC+
-DOOyJXVgzFO4Wzba0Ab32ObR+eiYhVjsc/b4EObS+7qKgusi4Rmks5ny9uTwJWXV3ExCaz/2worP
-UeX7V5NK5b2OPX6fQQ5YR1VPfycVct67tR7SWxSxsQivl2p1FNH2E4MDsdTMd5gCPnD0jbw56+2P
-jRaVV50scDrP0bgKZ4riQRkFN1Nns8deEjP0TNVbvZVeF7j2vdCa+Srv6KVT4m7ddahMktnmKXMp
-ekVyR+Ma37XdOfjh8yhMKJDI7heaqWgd1iCu/GgeTiN7a87c2bxtSPpeWyP1qjmICR4slI8jX3C2
-RRZ9NklGplWMD4PyntEYPyhhm2crM9JbGsANNX3hcrzAG7euMsknZva6dq3RFr+Zg8nRtwWNvnuX
-W7844iPljRUJSaljNo9RamQ/mzHIdlIBAqUAQR0r6ayB2ZgIrvsslf4eoFmyi4xZfpZSo2MLiTP6
-kdo64T89TI8bC8LgJg9U8pMDbPujUYU4DGNWJ6BYu+bJsFvAPIxZX+MIFqduQGa2tJ6jg+/KLtrm
-IB9Jzh5oHtWA2cI+oAI5+mlwDoMCnkKCaDZfWaXbnaXd2/7Czxi2dcJXgQpJ2l9KLS7P6VhV/caN
-rPhbI3yqCBNJEcA3e/s6c3rx1c1hZ3k1eOZbOwwF8QpBYJHqYC4VXb1GPeaUOVvGduDd1bXltV92
-96XSk5NROWyGurrVYq+pLD4Wx1woo0aS3udFrq5SvmALIHaBY1GnLYo4rTad687v7NtEIwwGAbf/
-kVYdlXm2+Ve+psWYvlHlr6gFfUqVEsE3l5M2J6m2M8S5WI4qq5B11bl24med25TCXuUdoGUJtDQl
-xwNZKXWgwNZOhM2Cni7Y/mobo5pAN0sTWgkH9KQ+usVgPNpGSN0ZQTUmRU2RhXSi/NatGntsm/Vs
-xAlYSrLTfsDXGb6Gi7h57Ay0ytqACA077yARB/A8ebtYTIo1i5D2MTYTTMyu7nPi6kqsRWY5BkdN
-mxF1UU6ha+6EQp6BeTnXRjbMt0mVZSbMSFdMiHFmdWStpqTc+7L+jIuIRmes21x4YqTBD6017Edt
-AnTui6jeRIZNj6psaWdyVGrSA8r//MBU+yEEKj1BdzIpS1g45J3yh5yGI7s7gJt+cZc819qtYE+A
-GKULB+ufF/cU2CPUcveZbhAdkg/TN6vqbqdZ6Oc00KgW2vy3Pr5+JnWVKI4wfbLhBcWKgCnzbkpA
-sNaF6Hd6FdibvnXwCDBR3SkiuHZTNCIy6sIKiVxonfrKVk+2CjSvWiajyl02lk5en1AImt9GwuK2
-I/uLY8aNjjxarH667gf5NRplf8oG2CboBmq6NNKecy8m98Rct3A98RhE2Tge3HEBaMyNQqeZk8I0
-7oYyzU9BPAUgrzVbPJRdB2uFb68/q7IhVMRE0EO9XTnDGvehzvXNFiDlJKCsj6A9PoJ67s2N6Zsd
-rUjRDA8lR4LvEnn6je/PxlNvdP1+Ig2o8AzDYIPr2+KTCSB06ecnhbm2R+F+M3mc0Qp7G60taTv3
-zGoYW+rcbvdEkk7fJUKujqo47BxvZAHQ9rMKY/Db4JYNAnQ8XSk6KXPk+/EuQ2Afr3zcQLXnxtK+
-oXzL5n/sS0p1Dr+9lTKTs68IzSOug/Jj24fh10ABbwhiH43OkFHMsnLrKm6l+Z1pRH2D7+naK5+g
-V3ZtRvbEtNbdYrutzpOu+i8NxBn2bIHhoNd2EM+4TbYdmy7Api8A2HhRwSaN/r7WfS4LKkueWxGC
-iEzDRBFUy0M7pe1R5E7+YPhj84H6RIYembbbhO0tUU/jHA0Ppib1exsZxKMLUGjT63l/3eRDdk8R
-0tnbqp6OxPAV10ZYBj8JF3FPQxAkvxTNtYbuqtueUkHw1MBB7BYvPseFZ5KM5PN6siscGePQ+dcC
-tdfiQO/lOiqr9DzKIbhCwbCp8SVgvxPZtsLmdabsjdDEKJBepBDDpR1hXAoC+DWliM1V586PdqLI
-J4QD/mXKC2tXOfKE1v02gSy8cku8KPRWg00jQHF6fd0W+8iqYNCUbIYz8OeffSAu61b46VGfop54
-Iu3erIzyrsWQfR+IAKo7RHCcwf51MEx8/KXWfiqN2vAswqIoIPvyOm1T+1Hqtn8zIif8FczmdB2m
-SUx4Y9hyKigcalapu2P/c82OJ74T9tjtCyNxbylOtV9lJ2M8IW3zVWpddfSnnCYrcipwugHIF2jB
-V47Aa2xjYqQvMPO3oJ+oMVv9jiLmCDam0Q5+3ap4DdRcnhE/D/sKRFlJgZmUrGyETmfOeo8ku9CN
-K63GxVxjSD/FzmhsOIOgaSsHZ6OGaW007Eq68gMWB9hxDu/1IKzouqSLc0wbs74FNmKuCFBqPpAC
-NR3ZsyhOyNRn/lklmZnwT+xSqKggAgf6ojeUTfOU3ZTOONiog8NEYXlj0drfNJPGEsl0bt3UaRFt
-qPdV2zbFg9ci2F4TtoC6fm4RWuhS3ig0eGe86c2xbM3whm50smmLcLoKtbQ50Eya95Zd4CQyQ3Iq
-NMv4qOBBnWZIQId2RMZESYLOcVC00bWdUu8RWT4ytdMNwMyBNAJI801c53IbJLl7XeN2OPWJG0G0
-0NgF6GN26NLS2arEzqhMTFNwCP2SHx7Evsuz9gq9cbczCZQf9XVbkd12bugSwKM2ejyg9CVKfBSm
-Q6zFEo63tjSoI55ZAy/38IQNH8q26M6Ro4DjsJVbFxJFDyQe8xhwcEQvSRsS8wuM3VTHFIlTQhjn
-gdM0CmxW+DQFTB/4fcnbTH0Q1dTsnm2ZgYzyhVUMZEWwYGRdVx5C5WK0WQJINFAqB1lW/jfHJhF0
-zkaC3eqsPfTmgnyvOqOk0ZUFKN+U4VLGC/X03g674IfF0e04hQYhEtPIfE4Bzb8xqUKdrMmgIj7l
-xucOUTvtZc7YOVY1eu+Uv5qYilpdUUZ0/OL2uTYX19Q9yVBxNqgbF5l6og8/TQ5On5+ZDMjV6y/B
-Qii3bIqcNGfcM8Wx6PTcNMirmloZMr+DrVGiLzgfUNWKOLs0BdR80goaftm5Rz9vFXr42dIyGqdD
-1KT3OqrMLbpyDgBBQmwWL6IL12OBuDwXRheP0JXAced4WHG/4+9YpWqgWd9OX3UMJ3dKMr3gZuKk
-qfCtRQN7TofQPI7kJI9pjaV9wOfXb+E+fdLth6hBmSb1+RaUwdIQK9c+CKslHc/2BoJbb0fcXl5l
-DndJPNZbkF/RFrOv9CjrVUd0U/ZNEOrO2ujYDhjIR8m7aNAqNrazmzX7OEnbXqG2RJhYZuwKfODz
-iTY2nk8jADBNoos1ASLaV1Itmy1B0vO1po8Cdb1bncbIEmwDucYC2fNew2PInsOWt6Z7nCV7oqYk
-ZHKSzvg9cHmsHdhtwtbwgSYUW02XXSqrFMcoEA7x1+cAzySbqwf2Ie6ZBhcCVp1D5rPYNq+4sXrb
-Bz/qZMFrODG4k0ZS5ewJBU08EDHLkksllzJmdLKcgbNk1KFSwpRbd+t4DC3/8f9ZinX0vf1dbi+k
-seA5/2eRPtlNL5Ob/vUT/ynQV6Q1g1TCO4wWH8go9v3/FOhDHkAtsRBl2QtZSPH/S6BPahNR4Tq8
-FguDN2A/2IsNkuXw3/9Nc/+BmB4ouW1zZOCH/kqef6nNJ/bJdYRhc05RNkWiC21+P8+k5nb50uvR
-APmziq9s02o3v92R238iGX+Hsl8AVuFmMQrpU/gRIOkIccHnLRAuscTw9uPxROvQadDnyC14CjDH
-rkmM0P5JvvgfSb1/XpXUDe4eDh2QglRZXzoOUvTb0h2dmpOfC5vaGcZtmGIYe/uqXhvFZH7gqEx+
-NvuVl6MwpURxrTNJxlYoPuvobw+g8ub126P8ee8gtlKHAn6OhUNeon/ripWrpaFLkh8Ns0ULTuMh
-qaXsvMKdaOgb9EA+vD3m8tR/A2vyvKTB9gBsvIMDiNSwl1dG9bmCSIWLuKgQkVBDk+u+Ib5a7xz1
-zuW9MpTiGRkGn4YtlMCI8rs5RJAZXGQddQXARySduvm8pUxBHzXO0uPbV/XKnYTHwRdlcxt5bBdv
-hSxVDoYaIBA7ifiAWVRh9I7bs1WY7s1QM1W+Pd4r78eL8S7uIskjc6F6xqtzYy73mUE9ahOjgnln
-nNduoRQGiSuCyyMD7uUtJCt7niIKsyjBq7BfxfEcT+s26uYnM+irdwZ77SaiCiXaiUoJROqLwdyq
-Vk4TT5RDJpGsu74WbLxQOUjLoQg+Otbq7Zv46sU5IFsE35lkmnx5cT3EKAd5QgUJAZ2edGP4Za2w
-2ZkhQnp7qNeel9It0+ZrRuMu/hgq0saBEi6nEJ10pdqXWwxKwfrtUZYbdPFtqd9HWS74NzdUP9tl
-3RhckJyLmzC0g51Dxtenhd1+HlA9fKqd7svbQ752D38fcnmmvw1paFKyp9Erb6op8rYiVddNPCPV
-zoL6w9tDvXoPDUs5SkJkQiH2cigyOsN61kLoncS135IOg2fYoZ75fxiFl52PWVnMwBej+NK32Bzb
-lVc0dA5M6rHbqC/U7u1RXnvVlUN6I8GGMPjdC/AOjbmITbGCeFa7plo5bpocU5X5v7KyCT+4zFft
-Ox/Xqw/KUUyHLn8ib+LLuxdDmqojZaKft2y1S/vuUVrWN1EJe/P2pb32mGydNOdl5XKEffFGKKmH
-wSCZMkKfUHOKKw4VGDpEb49ySXpnHVFM7NRUgUGzkJiXnHPNAUYmcxCeJmCOJgf+IQHubMqyDHb5
-UADrUHLn+2Q7mbKlBIPUi+RWnSPn27/Jn9er+H4U6BZpYB10Lj46FH163/esMgYB8eoOSnDYHNCm
-Z807T/CSev58ycihBOw2R0rj2Qz527c2NoGzIFVqD49iQu0HE0KFn2nRPV8FShuP9EKLTZ1ghzIZ
-fzXS71zxDFqjdQ/dpFXvbIX+nG4gRhl8kS7cCoR3y5357fcZJvZHWj+SPq07A4e4wM2UJ1oUZWvE
-dYIyWN0rPBhtNr7z9F8dGbwAu1cXDrhx8fCnvnTnoGLWGULqal2QCjRGvrbL0DRM7mMRD9X6b58y
-1/rbiBcf7CRMJJAGaxNZwg5knjhB9dDlf/0uMQoPmBtHwg58yJd31LGH3GRHWXnmRCiV5o5ktlm0
-VN6+lj8nH0ZRJntYZRoKWtTLUfKCpJrGXsysgavuqZFWGzNp4p1OtNM3FJXz9u3xXntaS1GPXbPk
-O7EvxvMTqGKpZFlS8WCV675ytJPw0Ug4xK5eiX5y2/UYsAt85zrfG9d5eZ0IQWj/FBaprxlV9Xgo
-ikMZdjNdSq0+EaZIcwbU5TvT32s3d9lt6qbOBt4yL6a/EYdolUIooXxtyC9UgMdug+wp3qGh1qHL
-5Fr7+e3b++fM7mKlX6zWwG4wP1ysWB0hlzlcKnKtffrVqqoQbWf0NMCy/P22k600OxhlSl1fIqhe
-3tHEmudkUGTWTMSgbvRk7rZjK9/bTP85o5ITQrWbIygpWyxDL0cZAqGaUTF/6FHqEwEOS0NRNKvn
-6e+f1YuBLqbunHJNYYmp9DS7HHZmAuc2ie07vUokvUj9nc9guTkvd2fLudomI0Owd2fdf3lZfMcY
-6EKUsGmvN8fQQZKBE0MHRiSdTWkrUO4D3C2MPrD7//5TwCpvCZf9NQdy8+LB2cnozEnL6j9rrfuQ
-Yrm6IU6qW5VCVoeiVjNlfMLt3rm/r7yZrtA5KLPDVrw34uUVcyZRsFzpb0qDBL0SsAMePepYkQ6l
-+u2P4JVvnUCy5901rAK+3ZdDOSUsJiso2VCFRY/vpuoOmdnKY2S5Yt/6NvzXtEIF//aorzxSShzU
-HdiIQE2/zJ2rw0rMbcuoZkez1kujiIDgqGiOdLC669FC3pgjml9VVJjfGfqPj2RZdNnHCcMCsyAu
-P0XsKHkJ6wTbDVH20PByc0stpr96+wL/eIKMInWqA3yKbLcu5xaUHRR+Z97ZGQAxtFkwcWuOuGDt
-Szv/J5fjf19ZWcZia8oJ0KaWo198Hwld1EiWNCsTTK4lxW5tfsKek9rvvCqvXpNFBJfjUBlYGJov
-ti3YSktn8fvyVhK2iV/MOtFHyw7V2DXvfPKvDQVZ09JNwsZYaC+GapeAjCLLGKqiJ0fZQ1uX80R6
-sz7t335Qr70O7IX4BAwKs8blGltlThiNAu1TDZZ+U2vsdWHPV5u/HmVZZvi8uHm6bZsvb10T2CEK
-IrqpqaSWr6sm9MCpOe88oFeuhQ31Us9jDITgF9MGX5FBdjhWuCGZ3BWVT+1b37n5e2fyVx6OSe1Q
-Wqw2inVm+fe/bV9t/GmhFiSkKVfkAbUJ8Zcko8XY4tx3kuZevaDfRrrYE+TFVPnzFGN1Uv0nBzLv
-Jhd++c67tvwhL5YXlw0HqwpHA+Zc07q4awAhqqwwCFA26Cueq3isHjJzKA7Igi2iPodx3L39MhjL
-n/jHiMCnXRO1vCS95uUNBOoXp0PFiBYqtW1bGeRm5/jZSaGBgAcZJdwjsMPkGEl3B79A/NIm7djI
-HI+vOST3b/86r91kHqSiDE5tVlz+NqEuQ8MZeWvwZD7ZnaZtqlD179T5XhuE3CJaxxTReW8ubrKq
-BgCbpYSlGKEaWk1DjJ290dHNvvMNvPY0gfNSMsJfD1Dn4pXxrSTXTUInlkhXBDChqfC8a1tD9vu8
-hZ719/fOUbQMwfArYo8u5ilIfGqEFApQsZX+Kenx5pTMoOv/wygUOyz2P+whL4vadmrX5hQwG8ZA
-uc8FbqrNKM3o7x8Rt40DFLMhD+ryzpGDpNElDpc9qh1epwM5vEYkw78tE7mUOBZFFysWB6nLcooz
-9xogAt59vJvZVTZBrSh9/Apv37E/qxzLMPRhJRl9UJWeSwK/zVGkIBUS7yrSpM6PztpE5otRpcdi
-kK6n9P7aGeR9qek+77rtn6h1H8G+lu+sLX/srfglDEostAiotHBjL79zvXPbIGUToHoBeHgMm/zW
-QpvUn2U3DBCfBzeNDnVPauM7L+YrnwEnAYc2i8lCjUDt5dBaEUq9y7AuTxm6slWoK3QIZXQ2rQVZ
-2fj8/e07/soHzsLD7EFGp7sEI74csEMOkmEVYU5b9JUDGgvk5Pic3h7lz6UHDA/8KMEbtKSgXdxR
-6s3BWNs8VhXSHk4dslWmHKyvBWz+nVfozzvIUA4WcMHZQxBU/vKCmCuVXkvuIKpICEdTkcLb0+fQ
-+Og2pvwRDtngv3N1y2//cl2AWi44+loW0xdL7Mshw6SSIxpKrB55pq0tt5Kfqm6Yv1Wdna4NIxff
-KIGMJwRZxT6rRfP09s3983XFQMvpRVFtdyGXXczR2Dv1oB86XL4pzKlU2T/S2n6SOcUpqDcZHuT3
-dpR/vjTLiBxY6aRRYb088zdDFCMpB0uSa4JzZNV1CNb69/JPX3lppE4vd9mAUbq5jKSrZwJlcnsJ
-BUjR5Ui8H+TF+Ub4oQB+EL/zHfAqXjxFCmsObWVaxGx4LEK1Xz5FozfcpjEnOEQZCrp9x3T9UwuB
-va5gADYPow6KxIMSA7J1Gp2pPItJlOaOrT0ac7pkRYUp1a1hmvD9IObXYgGmEP7oit0rPIA8b4r+
-4JpzmuwGn17ncXAa0B5IkKdiP+RNGe0ps/nmkZd6Co7+sOg7CXcxijX86iAkUigBjLQ0krrF6djl
-tyEixfJgJiSvETweh9nKeZa4jrjrH0sWn2RVp9gMVwCasJQXdg/JLFGQlu/ls3zWdsAl3zU6Ouq1
-UwQo/OgGIdM9YcLEBQTNYpx2RM2i0WUFSH5kuQ83VAxwsfe6gR4aOkKriK2p+oV4yNMkLY2pDdBO
-s9hFR4SmaysWCOoDBxHUSjUB4InKTzkaTNS0ow3ur7reqLyP633aGMm4CzLoYZv4WfFcC4E9Yeg6
-9gBA9vT8qKkUZIUYNPCaYdSOCHMHMyaYbhFf4xwwH0dcqRC7SnZyayvMDDz7TtZCifPnIdvRGhM8
-wrmgDjL+UwoOkQ3PUUgRY9tTFCTivXej4NjB6pXsYQfAK/ow+8OWJ4DPONBnDe14UAfO1qnLDKbA
-MCu1UWnVklv7LIMXfPvFpuuLCEd7RiZHrnuzQ76LN+fcTjTsIdlHVgbRzkvk1PSHQCNNdUX+BrFw
-aT1GtucriEfXYVbnOEbypsEE0KDK2lepgqXn5l0MbSiKM88ojAFcUxhAUOXwHB26YdSmc15RVkKq
-tzjL6xydouc6efQ5qnQybQarJaAwTudpGxUTi12U5v5XMvRs0siKqMvWkDQAGoSDbh1h4ua/bNTr
-uLLT/lc46yj/EOvgiYGrYJPbm0AKSCDiV5u2rZvvZh2RsEtJNn1ScuLUXkCNup4To7gmxio0d1Nt
-wmAKrZbcnlpicQIORlgju2gnP85i8XXMgJse4a7JYN13g/1tcuL0y9C68pyTrHubEU2MLE3xDD2C
-8kaOAAmEmQqJ2q1FdRWmn4Ez2EOgGn9KChcGdSpL9ymtcnIW8ijDiWK3St3gZ4yIolNtfOfaztTt
-5BRC3GoxycXb0nWafFPMPUHLEl996BGOBwglsuzw64jH5pece93wJLjss993M9jScMR2WsdksuEZ
-HrJkK41qvNN4OWBitGqE7tTO+a6z7Tx86I0ywAQbN7BaSCqzG48+rfkrcjPKVaT9oQbTiorwB4u8
-GyjFVgey15lg53L4EWjAguozWmyTjAOyNEA9GUZWQiNA+QsoLsLcBSoqEGu+lPRmLEu9PpsaPKu8
-dRSYDDxbtqfFmnE1gp//mcwOwQnVXNf1F+I13PErO3GZnUK4gcF2zEQ0HLUsq8qzJhM3vRdJlFZn
-I8aPdVthmJ7Ogd6WX2YLePanAGmZ/71vLaE/iCrP+i1PyLHvKpupc2/5wEq2uZ4P6thGWt1DN89q
-uE5Y3eZT3gsxLp5f2SElc+Ww1nmCLaoXwfWB8lKBcWDRGetdrc+B2iYVUQy7Ssv8n7HpAxpJBkKo
-EJzVaJXt1O2aVYPYiy5RgLz/W2fkBpkJrI9asPdR1Ud3jkUf+wj/mR9wfStWm3Ek5+zg+qSw3YY2
-3Z4vy4tg/oysftTh4BS1AOGhg4YY7xI2iPlnoqKS+CGfZvKRWAEsavxYWtLkkx84rZ6jCG46JPVV
-zOKG5UfWwbgQmYbSJ9gMo1n9y++oBdzP8DTNE0yiiSc/oF1lzpRJnNxODjGimBz6ZLiBlGUCbxJE
-hqz0XsHQDXqTiyowSFE9sIJ6FFeNX5f5aaiyJREiIDfybgjVYvewbCZiNivQ3CpRlAB8ujBnbxu3
-xWeLVD+IZWYyzThhgqA6BmXG0qFT16PQGAZJd6UMlJEPI6cP8ay+Fc65TuAIbMmddgjctNysviGL
-kKZvn2SIPUsn8tUKdWpcrTqOTB9wEo83OliwB9M38L+VpjVMXpE16rtCCQywxpeUUDU4v8VqQkTw
-OJszML9ApXyqrQ0Oj418iTAeEGh+xmcPskQLlZOtMmlotzFlfW2dOB3wgCnCNYUGJxw+hxr9wU27
-HP02CQ6b61SroCtRXtSRKBfxFxCr5I+Ty1D/HPnpeWUQKUR1XiGGXeHQCAgY0SuEV9Y8xF8ptKT1
-1dzYQKf7ifPyyrRL+r+s1ZgGem10byaSYd1DrhnOfZGKQD+WYd9NXkfsw43sbQvo3BgySdtl0jtH
-36mCcDU1cf7DyhMfRXueVz9wMVg3EGaMZo3zrFProgen7MmhyD4BHFLg/Pyq+JLWcUfkYhoXD4Um
-0axrnV7QEXKD9Nawp9H2RFekGRqkubGWno0/r0CrZtBL2y75iegknFZxSuYoW7oC2nzUmKl4kmnZ
-wFqdgura9XMUp2RRQQqLLdvGp8CG8COH3THziikTDwS5DwRDhhkAHGKrk3RjdaL55phJRwSWDbXT
-M4sqeBr1RGYek8p8UvNUPmLZxZ2YZBNkOnNK68fZMTDyjxMuHjWboLF9Obc/eqM1702BBxETVfgd
-c4v7IM3cfDQrUOurIQy0X2Y7dLcUNdJvbc807vmBLIVXkpz4fTJ797urpREJYiQfPloEd36rhyI5
-kpUNMai3nOaHO4/Fdxo/AACtSRDrzbaHzI8YzC4JBJpTQd7EJLTTEb1+igKEyJu0MwjyHJuCSkwS
-QXj3enMgpZQ+yCw2oeMAMgPwb2u7PO7iD6h1MexiDJbfmlZCXMxjM6hXBYU/i0TbgV2L0wF52cGS
-Suw1va3omqRXNewtNxIhTgV7iYHTg0SdSYulNUv1nTgw1iuAoB3ApmxDMzDtnwZ9SskWjiYJuCWa
-1GDchjQweIg+xjiiPpq4vPHxSgjPmpKiX7XQlcQqFci41taM3NpT7pQBRIttdj8KC+hXd2BRgMs4
-j2vbbiJCCIUe+bs0WbizYo7ip0raIxAKaufwtGkFbaWUJT6cLEvEqgycbBtbKf9oVsDf8Aeq/smM
-jeBTnbDZ2FsQujGb6f5wgoM6fFaxA2DXNdLyJknht21tESMMYDZV7ZYUUJ0znjuDIyiIh5ygAGHX
-8zTcvKjT6TnJzdxl5b2MO52MVxU6dxkeHyimSoOHm40LoYNQQnXbadyYAyl2JZXrAFkx6vmYkJgg
-XGqKuibL62rWBUG5cSYPEOVHnHijZvXr1O7I/zQ5cfUecwvrQjNHQJFZ9rQboXwfIF44NEeCUgNr
-Fw+KHYFD7ItnirHgOxmM4DEMKttYm0BWkw0fqWqRRrPurpUdsQny89w+uWlsWzu01xrIBD0cUzJq
-3Ppra/Ux0QgkTs5e2IRQUVMcDj8nWfUw+ro4uDNH3f5qaUZaAc7Ctr9WNMW/zG2AWUzPpd5uY6yg
-IBeKpL02/Tj4MojQZcMxB/pDljAfs2RMTFV62xGwWc05mn4CbSvSoMZafgrH0MZSbsbyXDt5cpf7
-iAdXIS6x+xnilO6VWjWext7nF+rTAK+yaAlU7PHxirWCozmu0A9hDABUFd1OlRBPYzQiDRjHtn9o
-SZdh+nbcmDREH38tABDoObXQpyeScMDWJXYPO43aOZkRrqNSDOzdMqeOsAaSFfZX/Tw6qgqj7/iS
-S3QGbE4xxxLdyonNApwJuQnX9Ya83+AHGUmpuXVI3im3BQ/I3Voqx8uZ9OmQrrmT2T2H4+o7ToGl
-bF8YUbWdStU0exeCBa4RB8n5quxikx1LXafTdppyWhSqmcQ9XpiA48M0dkS+xkVz4LLaX6kwq88G
-5qubqYhb25tbu/gJ2Xn+Bk+CJCMke9a4NkMbX3oZl0RMUoDmaxQoG1jGRwunEQayO2OyzA+inZkc
-2Glg1EM2KT/Uk8MepI2Neo0i3r/TIfsxC/tFtnfbOkuvDC0hnaAre+26TDjFkl2BN3VKXSfYJ5Pi
-3BlP5UIKCH3SAE0nMY6+iVqRnFZreTWcVt0O4Wh/dMrKtIEFlvnPXo+Hh46InM/AfXAi11BITnGY
-Ym2fcst+EFE5/iJ9s2OxbH1117N3v5qG0aUQJfhcO1Bg4UrnLPQxNWLUaQnNgLsxJvR7FY1aQZpp
-M9/3eY9yNwBG+xmtLblnxH/0D+nYDU8icwdwluxaDg7hC86RFXBycIQi+4eeGWfFrtEKlq25jJmK
-ZvymGNJyvyFBMXcJGJoXMAcZAtSl2xIJKrnebux7Iop6fKRG538h4KS6D6yAgEy/6/NpPSHMnVhp
-hO8DSawBJFu9WFLVqOXDAOBTgeroxOM2rUP3SbgkPOMGA3sHwDrCWcKuPPyWEtiitrNVLkUCJ83v
-ESmjMiJtIKk8qnXk9tYtfvmNU1F/3iCvwURMM5/OhzutHLr8/YyvNe1zHR7lnLAdB5Zr+z/YDsfD
-lTZ3Xb0fCXqqMQwpWT2wn3Z1mpxtrLaoRC2xgeqFlH2G2bsHfatNn7uhS6gO4LRQqwkH0LLWAfYj
-zcvQ+wPH8TLFUyT7D4SxEz3Ny2b6q9SXiifCKxGv02jJrNaTJb96fs6yTp5zrSn7y+AME47Ua3zT
-uTrh4mYpRRUru7Mol+hskuHwGltu2gQ7CTLiM1l3fCRJ5kA1gIQDlXlJ5p6GwBJe9Bzands1W8Pc
-1LNPaiSnbV1BnCFTlvmbddsnFIMiq8KXaSF6fCK2rU5Wdojui68gdz6pJJjJIeNI361gOo3WyZ27
-csbpa6VAh50pFdsutvtqJd3M/5ENaRuvSF+yYY3HMIDn57R0lwiVGjLr0kP0jT6WK07fxFqNWht+
-aUSHO6qIaBSwtrCUO+sgT2OBlydsiP5yKggG6jnnXStmPD0fSbkFavdcPvz/eIjf4iGEpMf+W1V1
-/bX9+q9/ff01+/nv/3b7s86/Zt+678VLw8rzj/3LfiLcf9D4Q0+6+Lzochv8if+yn1jGP0yTuraN
-Fh59q1BUpf+VD6H/A7cqCxdqDVMn5XJRDTb/ZT+xCMUUyGQWrZiLUOVv4iGeG7j/XYem2k1X12Ye
-MbEZ0Ny6VKKSDT7lNAXvTtunm2DjHXbeYXuzPXjb7dX2nr8O3o5/8jabTeCtjvvjrz0MYe/Xer/f
-/xq8u4d3usDGy1L8n7/PUrj+rZljoROFE2jcrb+sP2x33ma12b9TeX/uh7x1yRel96TQRpMy5N36
-an/lfdmut73nHbzH3da797aex5jr/Wq9Pq3Wp+3dytuc1u/8Bhdl4z8v8qK1kcV1Y+mxcXe1vXk6
-bD9sub+rr6v9cfXwzkj0FF5UqP8YyrnoPzdMhX7PxV7xhE9c3fJcl//x/zdP26v9+ubKO1w9XW2f
-rm4qb729unp64jfyzruDd3+43x12u91mtzt715v96rg67XkTHs/n1X7leWdvdb3nt17vuWH79eru
-tPJW3n5zvFudTusVr8s7Tbb33g7nQvvZNnUqWt6O7fruy7ebwLvxNo/XK91777Y96+TfeEeci8J+
-0ts0EXhCp/XV+j/YO6/dyJE0Cz8RC/QGWCywNOmklCrlpRuiZIreBT3fae/2DfbF9mN290yVeqYL
-g70dYExVyWQmGRGM+P9zvuP7x2umxJFZcR6Q7qZxr7lnr8wKlwt2XL/CNzJhNjcu/7Tni+s4Yjwx
-ndwrly/xp3Uw7/fbK/5/d8u19A/e6ch1Y74dN+vd933vytts9gHfyN8PB89bx+DmyBi53qwXNHZ3
-3DF+hvu18bkjF3wjV//peL3ehGufn/lhSfv620f+0Tr2ywH0qbtI0lQlWVwJXpLPyLtzt0d/f74U
-Lh+Bd8V/vF/cAO3c3furG6D/vA4s1jwi8eNOP3E5j7c7b70I/MG/9r2L/f7IoHth4O75r88U3m+D
-oHH542bHJT36u82Lu/GfNtvN5sXfX19zO1jTrm8i131khdtwFblPwYEJ8eTeeAf3PJr22/31/uZj
-H7kfN+svfb27fkncu8V9jdw9w21/c3N9w18/PlgpNy6T4OqWScv/n3a3we3uOzd2t7t17272+8l1
-I3fLrHm8vLp6vDrsgvv9Yfd+e/KCrXfy/KMXBLe+++1yvYOMs1tmixscDpcsAocdl9tn3TkvRHzy
-7yxIR5/Ztdt5fLw9I+bC2wVXjITzNz7c8s/r/Lz1L05PT75/673/YhysC8Vf3ZBPPdK2aevYWm8I
-S8gTF4KB4F16DFRvd8F79bxfPQnOEuu/esV1afvhUVB0Nrvt9RWv9wx/7/tun7jc0HWgM+Ou+ZDM
-K/7KdOF/3AN3fv2rf7258+/2N0f/qeKmb92ni9d1/vCGr7fu9u7rsK7wTNMbBo13GzDLgtoNrr6l
-7oFxdvB91fVPrIQvjnsfXK3z2nd3fsCjwD2sq8EvZtgn/cKfl+hPj7xQwU1Pr/l09F/u9uvUv/3r
-W4fm4hf37tMTj+e+Iim8wgUD55oFZ30OXKzXjk+5LkAMLQYS44uZw0C74FIxvFm2+CvXg6/tGJNH
-PzjwR757s+fy7/gqzw/+zEzwmFM+z2t+Jb9+/ZZNxc/v77h5LBbMvfOCuL7ifuO98C28BdfjLqzf
-zl8Cd51OO16X7+U3ft1e8+uZAvwqpvJ+H6yr7fH45PO82t+5XCh+hofROgJZOXlz/Dy/b/1l3iV/
-YIk48o6YiuxquK8PwWH91uCw5/5fnVctPvVuW/HhubXuJtgxntd1fl3DeW9bfvLG+8ZvZdJ5h6t1
-aq+XiQu1/jQDo2DF4XZ5/PNf37L1lv996KN8ppCgIoZ0HALROYd9emongFeJjZtjytZTdBWBAvD6
-sRgupNgYArsIOTyXrfyLF/15lPz+oquLEV3cqkb+tNKnRCBTGZ44c4dqdsrqJQ8WGge/eJVPHfrf
-PhpbWkTyOGrZeP48qzVIK3T4+GixPSqjWzgS+KxlBnMjg8D5xYv9g4+k6CgO1ouJXOXzfsGghGYt
-5Lm4ypyMHrj2EC6vUWz++m79g4/006t82iyIqlKJaudVhpgwp2Ks7Rs0hmkQT134rwm31qvHWcFA
-v4raiDPAp5fqeyU2RchhD1OesQV1S1xrv1i/+kBnmdnPAxBRisLJBYUIEc+fFTHkQ8kYuuhIqA0U
-IV+NIbQAsVmkxxza7IO0+l09InEjaePIxnDs1EHt/KYJZcttu3x+sAlOmDww8Wm8nyEhfZvhZ6CL
-CuHJ0kLv19gukiZJb7ZiE8iqTaVvOy3TmNJ1VAzQhLWcFifO0EQTWeWMxwE5mw6/V6I3QZDLquKU
-a9i+Xkt7CyCEQtzwSgYyvi/V2JdBUYtiNxNvAcTXzHDy9GGjK1snV9uHkcC++KCq4LyoAjH2pn4Z
-3wFLOYJeQBgTorIUECNgsPSUDaVOKOTyEk3ldnJbAq3spweNCJMKkMsy53D/V7FZbI7MHs2ISRdC
-wzCSoa2rWeXaIGSAkdDUBj3hQP/wJUHxFOTHoudeos3FPYTklc+mx3AxK5SBIlgIeBiJfBS5CMg2
-dZ5IrmieK2HRr0e3ShxUmGhUIjB+1E4gxw6wmEwaVS/t6kaBRqORaJBlpOvC8oEVvsi9TKOMdO7S
-KxGBEumDllvsTLmgxQyYChJsQ29deJY0D8bGakR6ygcaxi4AXPO7adbK9yJtDFJ7LGt2jqs0WQ/m
-XkUxJTm1c9Xh3dV2QHGoxdVIApEykGJ/TfQg8EAw+Pq3Uo0IDSEd6HllK73CrcG0bAkbbGwjdEIg
-BlNOj7Oi52agk2PV3g8FMLSNWeoE+HT2lI1eOhnN97IbBjornTMytVW9TLA0LsutyIbJ9DppfQdl
-VsWX6TjpElHXizb4Qm3il8x2siulrGBdL1WmQ4yOFC4LluZBgu0zd8pGc8b8GeiXSk8LaNBxoN8B
-M7YpiJagCOz4pK/bWIhAWQVOjl9jV8BeeqT5aSR+we1aQ+lp3Hp5USHCWAX7DcltmXNbgHcRm9le
-RBlAakTVNjLgP9BK2cciBapFidMGm5NltKS9fOy6bEcC3/TcdEMHwElxistZIlYXpmpjfdezOqIb
-1FRdeaUbkaPusxbLkRcq+XCaWUfecoV+ttsDygLTm3TFDb0Ikd1NA2MEQdIk3U946Nx6IoXKF4st
-nZpIL8tA0vT+kKEGKze2ZNdrzb7rwNgxi4CPymgjqqRxSCagNM1cBJq/pp2Y4VGjIULGYQFR26tD
-NQcuCtTOcGNdB5UjBB7endKl7QnfL/QyAKnlSbYTutumUg4xdGyrFZc9ppQiSKWikskfV7R4IzqN
-xMahqx2ZDroFdGtRnfo2tAvnMZUT9U0JwX8hMqYs2ZaiL6/EOFKAFUBic09Wp9XfEpbECGYO0TIJ
-HKOvS4N8eMVQZs3OnhL1pSFCnmBDEqXiK0LqykthoX501aGXb8pFYqmldUS0im4Wxn2HccDhkZXD
-mR3JqLxvoeFRbW30Odk1KfQ9BCalgOnZr434kTVlcSUty6+6qiKjsJ7ivvFbyK8wvS1iWNxsahLH
-oxMQPdMiaJ77EMLlCkMt4yCK5tGgp1shzkLgGr86TT0RSqiLvvCrOAnvaNCSl10U3ImlxuNO5bBe
-+Bd7JIMo0sAHu0tqKbPHjIrajUmOJ4kCU/VdrUkdC+H5IUiTl+kOtYf5DqctfMCQ5HT7aIZ4QI8q
-ie6cQUte8GXgkbdG9N1aNEvvjRkN3whWAEsb27J2q+PsI9NcOMkbqFoJcbYWSfcyU/JbnFHRDwwA
-Osc8E2sYghIWdBQHeMOIYZLq3prs2PAbW2+F15pRgsgj7Z9D1ikae9FI11qQxNAV/Vz409LVNyR3
-aacxT9FFmXpOCbqhJ3k1kIS8eCNPEECrhbDFhrD3Zjc1FP/B7YkB7RhEvHpTo+SNvaFxwnvAXuEc
-wHO0P/TcKG7rxCTcL4eXljLk6d9vk4YUaSHNEXDwruahlfR6eJWQ/vux1GXb04sKJ7p8ukP7vWeW
-72E0GfeSTAdi0yFbpFtW6+VhVaASLuQo2mMZrThfXW76K5K9zGaPxo8MmrIs16tJhALCQDNNqKCv
-WD+S2205UGtioo9U+y/mTGue2nggfrkyp8pgdW+hsBopDE0XlR8+jchuwgtNsYzmIA1F3fFEkyfd
-VVIoyIaGANXXEMvBZzINRSfdaIDNW8hmFfuSbUTEZU2pCRtBBX0/TrkWXmU9JPKaNVN2k6YXxJ73
-Sf+Nhrn+1Cojjsq0pnrtGqqZESSxQqa1WIGKJfPWvATk7HYZKgMw4NK071Ky5DheBRmYgJlLMn2c
-rCaBfagRO3kOXfQM1BosLQD7EfOnQdVf+I1kRW8sPIa6lzN5JuUDYiao6BjtVAjr+DUaKJu78lTL
-qNUGqFm6QWXczUyGm5fMRGH5c8FK48kU3CcCBkrCUUYM+BlLRRpmm9BK+hspdnhG4zaEalwmi+ls
-FQVEHVvy2sgD5Cwi2sDuzctDBBy+dYGDpiUoSTW+s9oZQ3Jdtc53ydGn/pJfFd+ldjiBOe+kqj+m
-qO+vBWCvgh2w